--- a/src/documents/MilkTeaData.xlsx
+++ b/src/documents/MilkTeaData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC38C6C-B6E2-45BF-9B86-77A8BB33BFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E12985-73F8-44F8-B018-ADB00FBB44FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>value</t>
   </si>
@@ -51,32 +51,121 @@
     <t>avaiable</t>
   </si>
   <si>
-    <t>Lục Trà Vải Chanh</t>
-  </si>
-  <si>
     <t>image/jpeg</t>
   </si>
   <si>
-    <t>/9j/4AAQSkZJRgABAQAAAQABAAD/4gIoSUNDX1BST0ZJTEUAAQEAAAIYAAAAAAQwAABtbnRyUkdCIFhZWiAAAAAAAAAAAAAAAABhY3NwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQAA9tYAAQAAAADTLQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlkZXNjAAAA8AAAAHRyWFlaAAABZAAAABRnWFlaAAABeAAAABRiWFlaAAABjAAAABRyVFJDAAABoAAAAChnVFJDAAABoAAAAChiVFJDAAABoAAAACh3dHB0AAAByAAAABRjcHJ0AAAB3AAAADxtbHVjAAAAAAAAAAEAAAAMZW5VUwAAAFgAAAAcAHMAUgBHAEIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFhZWiAAAAAAAABvogAAOPUAAAOQWFlaIAAAAAAAAGKZAAC3hQAAGNpYWVogAAAAAAAAJKAAAA+EAAC2z3BhcmEAAAAAAAQAAAACZmYAAPKnAAANWQAAE9AAAApbAAAAAAAAAABYWVogAAAAAAAA9tYAAQAAAADTLW1sdWMAAAAAAAAAAQAAAAxlblVTAAAAIAAAABwARwBvAG8AZwBsAGUAIABJAG4AYwAuACAAMgAwADEANv/bAEMABgQFBgUEBgYFBgcHBggKEAoKCQkKFA4PDBAXFBgYFxQWFhodJR8aGyMcFhYgLCAjJicpKikZHy0wLSgwJSgpKP/bAEMBBwcHCggKEwoKEygaFhooKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKP/AABEIAu4C7gMBIgACEQEDEQH/xAAcAAEAAgMBAQEAAAAAAAAAAAAAAQIDBQYEBwj/xABHEAACAQMCBQICCAMGBAUCBwAAAQIDBBEFIQYSMUFRE2EicRQyQlJigZGhI7HBBzNDcpLRFSQ0UxYlgqLCRPBUc4OTsuLx/8QAGwEBAAMBAQEBAAAAAAAAAAAAAAECAwQFBgf/xAAzEQEBAAIBAwIFAwMDAwUAAAAAAQIRAwQSITFBBRMiUWEGMnEUkaEVI0IkwdEzUmKBsf/aAAwDAQACEQMRAD8A/VIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA2l1aCafRgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGOvXp0Ic1Waivc1Fzray1bwz+JmefLjh+6rY4ZZejdlZVIR6yS/M5Svf3VVNyqPHhbI11WtUct31OPk+IYY+kb49Nb7u7jVpye04v8yykn0aPn1So4Q5pzSSFO9nHenVnH5PAw+IY5exl01nu+hA4ajrV5D6tZyX4tzZ23ErWFcUk/eLOjHqcMmV4so6YHitNUtLrCp1Upfdlsz2m8svozs0AAkAAAAAAAAClarCjBzqSUYruzzX+oUrSO75p9oo5m9vat3P+LL4e0eyOfm6jHin5a8fFc/4bS817DcbaGfxSNVW1e6eW6sl8tjyzS5tnsY3BOWWeLy9TzZ31duHFhj7Lzv7mXWpUfzZieqX0JJUqk4pfiLtFXBNbrcw3yb331prH7NlZcR3FNxVxFVI933N4tf0/kUpV1HPZ9Uca4pmGrTyvY7OLrs8Jq3bDPp8cvTw+i2t3b3UOahVjNezM58yhKVvLmozlCXsz22mu31CS/jOa+7Pc7eP4hhl6ufLgs9H0AGi07iK3uMQuF6U/d7G8hKM4qUWmn0aO7DPHObxrGyz1SACyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1uo6nG3zCl8VT+RXVdQ9NOlRfxvq/BonlvL3bOPqOp7Ppxb8XFvzSrUqV5uVabkwlFDla6kSwvdnk8nJa7McZGKpzTeI7IlUY4zPdotFibysGEknmea0/Dz1qcakklFNeR6MEviSZlWyKS3TLYZWK5Tbx3KjCDdOO67Hjp14y2csPwe+pHqeK5pQkstYl5Jw5LjfNVuMX9TGNzcaZrte2xGo3VpLs+q+RzVOo90+qM0amfY7ePmuPnGssuPfivpdhfUL6l6lCafld0ek+a2d5VtK0alGTjJdfDO70fUqeo2/NHCqL60fB6XDzzk8e7lz47i94AN2YAABqtV1JUc0qLzU7vwZdXvlbUuSD/AIkv2OWqTcm23lnL1HP2eJ6tuLj7vNWqTdSbcm231bMbRVPLJbPLyy27JNBDQbHzMbLfRdBEttyYtKWG8EVHlNR3ZjlhlfSLSxhnJRmsPZkNpr4dzxR0q6r1nK6ueWlnaEOp71QpW1HEcpLu2c84+TVvJ4i+XbPGN2886eHlvCPNyt1W0nynujGNZNtPHbJjqVI284praTwjo4sZh9VrHKW+IwSx1Nlper3FjJcrc6feDKXNvBrMVjbsa+cJQeOz7nZhzXHL6WOWG55fRtM1GjqFLmpPEl9aL6o9p8xtLmvZ1o1aUmmvHc77R9Tp6jbqUWlUX1onq8HUTk8X1cueHb5bAAHSzAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANfrWpU9OtnKTXqS2iinJyY8WNzzupE443K6iNX1WjptLM/iqPpBdTlo8QXtzWclL04p7RSNVcVK15UlUlJznJ9TLZWlSlvN5z2R8zfiPUdTzS4zWDu+Thhh5813Ok6iruHLUwqiX6mxOGs68qMk4tqUXsdZpl/C8peKi6o+g6fqJyz8uTPDt8vaeTUrn6Pbvl+vLZHrOe1as6t24rpHZGnNn2Y7Rx491eF5nJt7t9y20F7k7JFG8pvv2PIydsYqlTLLwhmnKeVhEKCb8suoGPZ53V7l41GJdQ0ZuUjlHZEd9eaSZR5XY9TjuUaXgdkO+vJPfqeW4hsbGUE+qPPWpJrZ4KZYfZPc0Di41nuZoS8rcyXdvKnJTaePKMcUpLqVwtnirXyupYZ7tLvpWd1GrTeGnuuzRrXFprD2Yzg3w5bjdxncJfD6pZ3MLu3hWpPMZL9DMcDw3q7sbhU6rboTeH7e53sJKcVKLzF7pns8HNOXHfu4eTC4XSTHc1o0KE6kukUZDn+JLv4o0IvZbv5l+XPsxtRhj3XTU3dzK4rSqSe7Z5mykpblqa5nseLllc8noTHtjJFbZLcnkvCCx7lnErlZierFjwiOVmbBPJLl5uV48sp3WpedweSyiZuR43Mc5wis8xFysFXhey8nmrNTl5ihVqueyWEU7GWXleLc2FhbGOpCNaPLPtuiWu5V+URd0ZlL4Em910ZgqSTW6JUuzMc92U3Z5iLGCXX4Hj2ZmsL2pZXUatJuMl1XZnlqL4jFz78s/wAmdPFz2XyzywfTdK1Whf01ytRqd4NmwPk9C4qWtWM6Ummu6O40DX4XqVK4ajW7P7x7PB1U5Ppy9XHnx9vmOgAB1sgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGK7rwtredWo9orPzPn+p16l/XlUqPdvZeEdBxTd87VvT3Ufing5vD5jw/ifJ8y/K9nVwzt+ojJU4qMV0M1tWfqowtZeUXoxfNstzz8dytazYfrSXbJsdLqujfUsPZvDNbGb53vkzUqj5ljr1R0dFzTvM8dx3UniLfg5GVTnrTa3eTcVNSjU07Cf8aSw14NRTpqC2XXqel1nLPGONZcGGt2oxnqSkZVDK3LJJHBNt7WOMC2EixCwWkV2q9yuC7ZjbYohpFZIs2Q2QMEjHJGWaMbTKLMUllNNJpnguLPGZ0f9JspRMclsP5N69GnSb2w0/BWUJLsbGtSTfNFfF/M8EqzVTknHC7MrbpeeWPddTr+EtZzFWdzLp9ST/kcrJZXQxQnOnJTWdns12ZPFz5cOXdFc8JnNV9YqVFCnOT6RWThL+59WvOTfVs2FHXlc6LUhVlivFY+aOZdZzm3nqzr63q8csce2+rLg4bLdvbGXM0keumuVJHntIYWZdWZ5vL2OWS9u299XtSiopInlh9p8se7PEriotlgmVSU/rP8iMTTPWuVBOFvFOOc88luzzXF1WrcqnN4j0S2DKtInLdJqMcpzk95Nv5hQ3yXUdyyWSswTcky5JSThDlWN17mKrFZzFPHgydHsyJy33LZeZ5VlYHtHJjk+mDM1GU2k+pNSh/Cy8ZXQz1v0W282/YpJvseinFrOVlYMDko1F8ylg89RN9tzDOOVujYXsozadKGF3ZSha+q0pTUFLo30HZu6ivd71rXPGz6FqM5U5qUG0/Y9F1YyjVlGElLGdzxQeOpeZXG6qtks8O94Z1/6Ry213JKp9ib+17HTnyKlJxknFtNbpn0PhrVFfWqp1H/AB4LD90ex0nU9/0Zerk5MNeY3QAO9iAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYL+4VraVKuMuK2Xlmc1nEVRU9NlJx5viWxTky7MLl9kybunORm6ka9Ss931bNXH6zPfTqwcaikuWNTqvB5o0uabUO3c+d5Jc7NOueFUWi8PYidOUX2a9iYQlLaKZllxZ3xItuEkk9tmy1g3Oo4y6ozK0l6CqPzjBm06ioqVSXV7Ijj6fPi5McqtMplNPTThiJlUfJZLosE9DrmO/NNmCGTIqy6qG9iMPAfUjfJCUFWiz6ZKSZFIjqVyGyMlUoZRosypArLoYpmSSMbyRSMTPJd0XOD5dsnrmikvczv2q0amU5xeHHKRKq4T5fqyWGmZ76LS9RL6vVGv9Tme+2Tm5OTsum2M7ptmUnFZiZbGHrV8/ZjueVS2wbOyiqVNR7vdlOL689+0WviPfHZF4x5ms7R7sxpvHuX524pPoelKxqVH4mo7rsZPSecEwlGKzjLM9NN03I0mMUtYpUXDCnvldEy9G0lVe0X7HptKXV8vff5HtqyUYxlnlT2yazjl81S5X0a6FhPCaTznD8EXdvTp0uelnZ8r9zb03hSjy5lCO2O76mruaXLp8ZNvM228vpuTnhMZdREy3Wsby8JGOSzsuxf3L0uVt5Zx634bejxtOLT8FpVMp88nkzNb46o81/FejttIyynbNxMu0K5UZNZ39ik0888u54IxfXJsrZK4t5JN80OxTDeXhOWp5NvSeOvYivScKdPnk+eW7j4XkzWlKnJy9Wail5LO3tqt2lb3LjT5c80+z8G0w8bZWr17JujScKtOpnEcxfT5mquLX0Zz5ZRnCLxJroe+t6e6h8E+jWc83ueWpDmg0+j2ZbOy3xFZuPIouMmpL4H9WXue7SrudldQqwbTi915XcwVIfw+VNpPsUg94+V1GGVxu0Wbj6pbVo3FCFWDzGSyZDm+D7tzpVLab+p8UfkdIe/xZ9+MyceU1dAANEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUnWpw+tOK/MC5yurXsrytOi9qEZYWO/ubDVdViqbp28vifWXg5xz+Lmi90cHVc+P7JW3HhfVeVKlSlL4udfZKKfLnlgsEPmnJyeMstGOOrPOmc348NtCqYW0ESqzXSBbNNdVkq6ke0TacmP/uRr8MsLhuHJy9We2jHCSPJbxk3meEvCPfT6ZK3LvvhaTQs5Lcz5eXHXqyCUhBV9fYq1noWljuyIzUXus+wSh05KLkotxXVrsWoUKldNxT5UvrYMtvdqjKXMlKEusTPPU4RalTglDvHubYY8Wt5VS3L2jXxhlqOVv5MM2uiPXf3VCtOnUopppbrGDXuWXkw5e2XWN2vju+aDOxBGcmG1zJVsnOBOpHkworPkjcF6dN1GorCb7MrVpunJxmsSXVFZV1KUJvZxIuLpzqOcYJZ7FrnjpGrtSTh8jFUjtlEutU35UkvkYZyqtbtYMcstpkY6qTi0+ho6lPkrSju8dDdy36nmubf1VlbSXddzm5uPLObk9G3Hl23y8EZRjJPwe62r5eWYKdnBJyqtrHYrKpRpf4iS8LdmXFZxzeWUjS3u8SNsquejMsG2t9zTRvaa2im37mRXdRvHMkvCNv63jnp5UvHW6g8Pdo9jrU3CMVOK8vJz0ZSl1me2mqTjF8266o14+tt9Izyw03qv7eFOCjUT5X8WO5huNTjPk5E/hecY2NZB0HNupJqHiJklVtoQXpKXN3cu50f1WVnmyKdkns9stWq8so04RjGW7b6nlqV6lWKjOWYrdI806sH02ZEamCLzXL1qe2RkeM4exVLE8GKVT3Jdbmx5Kd8Tqsr+KW2x4r+UHtzfF4RnU5cksdezPC4bvPVlM+Ta2MY49Ejf2dWktJpxjiFZNxn5a7GljT3yeyjGeE0sFuHkuG9e6uc2yqGG/CKQoyq59ODlgvLOTFNy7ZXyJ3PdRarQnRa56bin3MMkMTe3M8e7LYeN2mNz2Qw1FhbmJLc9MqbqbZIVs/O5ftyvmK7e7QLn6PfUpt4jnD/M7qN1Ql0rQ/1HzyjRcXu8GxhWWEn18o9To+S44ayYZ47u3bRnGX1ZJ/Jlji41pReYTf6npoatcUX8UuZeGdc5sVOyurBrtP1WldNReIzf6M2JrLL5ilmgAEgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADw6tcuhQShtKW2TQyqc/VvPubfXot0oNLZM0bW5hyZZS+GmEmkShHO5hq0YyjhPBmaIaOPkw34sbSvH9Gn2n+RV0qkV5fg9uERyo4culxnpGkzeH+L3iTTTVROSke+KS6GRJPqkzO9Lv3qe4pTivBmVReSqhH7iJ5I/dOjHCxW3a3qIj1B6cfusj04+5bQhzRRyLulH3KukvLIuNTKxyee5R7mV0l5ZR0fxP8AQpcanbG17jJLpfiwVdOXaSMbjlPZbcGyre/UpKFRdMMpL1OjizHLLOey00yykikmjDJz8GObqdomV5M/snUZW0VlUSR5petn6rMclW+42Y5cnJ7RbUel199ikq2ftI8jhXl9hoiNKq5YksGN5ef07aduLNK6S7ZPJcXVzPalyU0ZaltVX1VkxejWb3gzn5eTq79PnX4XxmE8tbXhcNt1JykYlR3WTcelV3XIzBSs685v+HjHds4p03Lb+2ujHmmnkhTfuzPCMk+jNrCzcUsuOS30b3R2Y9JyT2ZXmleCEmuqZmjN9tj1O290V+it/bSNpwcs9lO+VSLb7l17surVpfXRP0WX30b44Zz2VtinNFPoS5NrYt9ElnPOi/0b8R0Y9/2V8PNLHdhyUd0zO7VPuyPose6bK3HP2idxNKqpR5W+pjnHrFPPujIreK+yyypYfwxYuHJUbjyrmXQ9FKpLl+JllQm3tBsn6PJbyg0Tjw8kRcpUOr5ZV1EZVSj90sqS8I1x4c761W2PPn2JSkz0el8h6SXc2x4MlLlGJU397BmUcrqsleVtbCcZ018awdPHj2+zO1O62ZMclIyUnsyeZL7ZtjFdsseYlpPDnPp4MPPHy2ZYU+ZG2GG/RFq8akae9NNPydho9aVewpzqPMujZyCopdWdboseTT6axjujr4pZfLPPVe4AGzMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABWpCNSDjNJxZrK+jxbzSnj2ZtQRcZfVMunOVtLr005bNLwzX7eTspxUoOL6NHHXVGVGvKElhpnF1W+OS4tuO93qpLPYo5SXZkNvJXma7s8zPnsbzFdVHnoZYTfgwqo/JMajz1KTnT2vVCTf2TKs4+qzzQqy8maNafk1w5pVbjWVP2kMrwyFXn3SZEq7fVI1+ZEdtS3HyyvPD7zIlUXdGN1IZ3ixeSfdMxZvUiuk/2JVZf9yP8ApRgVS3+1CX5MKpZrZ06r9yPmz7xPb+Ho9Tb+9pP5wRDqZ+1Q/wBCMTnp/T0qq9yjlp6zzKr+SJvN/wDKI7fwmc2/tUcf5TDOcvvU/wBCZ/QnupTS+R5pu3zlTf5o5s+bXvF5imc5dpU/0MTlPzTK1J023yThgwScf+4jC9T9tL9jO5zXeBV1JfhMGYvpOJRv8cSt6q/g7HodV9+UpKq/CMGPxory7/XiVvVW+0OxnVaGX6s/TWNpJZ38GGlcc73zgpySX2o477kKcKP1eRy+ZW898b1EzGPTUqqEsZK+uvKNfUc5zcpVYZfbJCTz/eQK/wBXfwt8tsvU8NFlPfqjXr3qQ/UyxafWrEmdRv7I7NPbz+6ySpvyjzR5cb1EWTj99F5zfwjtehSflFud+UedOOf7wtmn99/oaTm/hHaz8z+8ieZ/eMKnSXVthV6S7NlvnT7o7WVyf3v2IefvsqrulHpDP5EO6pv7AvNj9ztv2WWfvMyRT7ORgVzT+6zJSvFDeMN/cic+M9aXGs8YTfRz/JiVOX2ud/NhatVgsRjExz1StPrGPzLf1XF91ezL7MrgsJJPIUG+kTzu+qPtFFHeVfOCJ1WCPl17fSn2gVlTmt2onjdxVfWbKurJ9ZM0nVY30R8uvVzNRw2smKcXL682zD6jfVk83uWnNtFxZEoxzhblHDu5EKW5SZa83bN6R2vXaU4VriFGms1JvCydFS0Gttz1YxX4TV8JWkq+oevj+HSXX3O2PS6G3k4+/KMeX6bqNZa6Nb0XzTbqS/F0NnFKKSikkuyAO2SRjsABIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeDV7WFW2nUa+OEW0z3mO5jz29SPmLRTkxmWNlTjdXbjOaL67ENRfRmOf1mvDKyZ87nm7pGXkTHptGHO+zJVSWephcpfVZngmjKmzzRqyz2M0Z57FsLPYZeZkZIzsVbSNt6Fm2Uk9yeYrJkW7FJPyUXUtJopleTDKrxEpZMbkWlJeUYpSX3kc2eS0is5GCpUwWqTX3keapNfeRx8mbSRhuK/LJNfmYvpMX3FaLk1y4ZRUXnsc13ttJNPRCSlHYZwRCLiiXnwTqqJ5iG0SkQ0idVDHORhluZ5LxjPuUmu6W5nlFpdPPjG4SLPJMV7FZivaQWTLFbEwj5wZYpexvjiztTBl8hY8FkkbSKbMll0CwWNYi1QjGS/5oh48oujajWAS17ort95CiY9TInlGPMfJZSjjqU3+UrSRGe6DnD3K88PDK7n3RpOdyy+J7so5rOyJhPGdi2NiLGTsQk2Q6jxhJEepJG+OUUsZFTb3Ja2MSk292y0UdWGUUsZMpEQXPUhHGeaSX7h9D06ZT9S/oR/EmWzy7rMJ7qya8u+sbanaW0KVGCjFLt5M4B9RJMZqOC+QAEgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB7gAcJcrkuKkfEmYWz2avFw1KuvxHiZ8tz/TlY9DHzIZGSvQZOS5LMkXuZYyPPF7mSMicc9JeqMsoMwxluX5snVjnuI0lyXQo5bCRSWyK5ZWJkRN+DFJ7FmzBUZy8ma8is5Hlq1OyZatJ9jX1Zty6nnc3K3wx2yVHJ53Kb+xibaKKTeVk4e7y20ztPvJIJLOXJswReepk5ZYT7FsfKKz+phfCUcm2FTnjmw8eSyWextJfdluIROGWUdyyReYq2sTaTzLOO+CsnHPw5x7nocEx6a8Ds2dzz5GxndNNdCFTwJho7mNIsi3J56kqJeY02IuEiyReY1G0EjBKRpIhXAL4IwSbVKtF8DA2MbQMmCrRSpiuSUQ0SkZpT3JISJWcdC0qtSiSqJRpMtIsW67l4lEjLFYOjDkUsTg2vDdPn1Wi30WX+xrEjfcJU+a+qS+7A7Ojnfz4z8seTxjXXAA+rcAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOR4kjy6k/xRyalm94rhi5pT8xwaFs+Y62dvLlHdxXeMGQQ2Mnm2tjOGXjIxPoIywZ92ql6Ey6kYFIspbGuPJo0zc5RvJVsjmLXl2aVkzDUfgyTe5hk9jn5Ml481d7Hjmj11FlswSjlnBybrfG6edrJCSXVNno5Uijjky7Vu5SETKoloxMiib44M7kr8Tio8zUV0RaMPJdRLKJrMbWdyVUScYLqJPKaTjqm1VHYcpflJwadiNsfKWUS6ROC+OERapyIciyXxn2LJGs44jbFyDlM2CcFpxQ7mHkHIZkiUi3yYjuYeQjkZnaHKReKJ7nn5NxyHocRylfkxPe8/KVcT1OJVxRnlxaTM3l5Ry7nocPYjlWcdzG8a0yYFHDJwZuQnkRXsp3MGCcGfk9hyFuyo7mOKLpFlElIvjFbSO2MnTcIQ/6if5HNY8nXcKQ5bCcvvSyet8Mx3zxhzX6W7AB9M4gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAaDi2GaNCa7SaZzMjruKI503m8SRyL6Hz3xLHXNfzHXw36VH1IJYXQ8ezy6FWVLNFWYZRaLJk8xjGcGfdYsy8zIcjHkZJmdSs2UkW7EMeptgmmjG453PRJFXEzuK0yefkEY7mblEY7kY4eTuVUCyiZEicHRMGdqiW+5ZIlEpGmOKtqME4JBrMVbUYJWzBJbtNq/E2+ZL2wWSCRZFsYgS2CQ+ZZGuMRUY8lkgicGkiNoSLAFkIwTgkIg2hoYLDqV0lTBDRdogplEyqYGCe5PKYWLbUwSkWxgYK9ptDBljTXI5ye3ZGN+xbLCybpKrgnoAUkEYO34fp+npVHPV5f7nE9eh3+nw5LKjH8KPb+E4/Xlfw5+e+JHoAB7rlAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB4dchz6ZWXhZOIR399Hns68fMH/I4FrDa8Hi/FMfqxrp4L4qjRCLSREUeNcfLo2NFGvJkaKtGWeKZWNrBVoyS6FGjkzxaSqlkME4KY4p2gFgayK7VaKtF2irWwptRotBDBZbDCeS0xsMEhnRpXauCUQ9ieuxEokgjJOS8yRpIIBO0JRZdCpOfBeZCxKIXQk0lQklEZwSaTJCyGCESWlQlAEk7EAkECCGWfQgpklCWScE4wClmolUgsyGZVJl4wR2LPDingqMtkQyC2BgiQWt481anHzJL9z6DSXLSgvCSOG0un6l9Rj+JM7s9/wCFY6xyrm575kAAes5wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAARNc0JR8rB8/rx5a1SL7SZ9BOG1ek6WoV4tY+LJ5nxPHeGNbcN8vGwtgTFHh63XVsKtF8ENFc8RjZVouyuMnLlivKhRGC2A0VmCdqgkE6QqQ0XwRgXE2rglIJbl0i3HiWqBl2irRtcVdqP3I6Mu0UZhlNLRL8lSYvDx2JaFm5uCqJyQSRKGSyZUlbFpkWLZJTKosa41C2SSqLdzXGq1JYqiTSVCyJIRJZAA+hBFySkAMpckjIJIM7dgB3BCTp3IwTjpnv0JFgrgnBKDLyIbDh6nz6nT8RTf7HZHL8LQzeVJY6ROoPofh2Pbw/zXJzXeQADvZAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGp4gsYXFu6y2qU118o2xhvY81nWX4H/Iz5sJnhcanG6u3A9C0Q1h4ZaEVg+Zxx8u21VkMs447lXkZ4pirRXBZ9CF8jlyx8pASg8EdqVWQW2IM7EoILEDRtESwRbBrxxW1QZLYIaNdIUZVmRxKOJlnitKo0WTyvcNZIWzMfSp9UYIMkkUwVymqmUAwTgiRKUSEuvsSjaK1JZFVkncvLpCyJRVNkpl5mjS4yVTDl4Ld6NLNkc3gr1ZKSKbtSsiSM7DJaYiQRzLJOSKI6BbhZfYlZK+6VpNywuy6EBJ+ScGnm+qEMmnBznGMesnhFkl4PRYR572iu3Ov5m3Hh3ZSIt1HUaTYRsqHXmqS3kz3AH0+GEwx7cXDbu7oACyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACtVc1Ka8xaLBgcBVXLVmvEn/MQ6mS9jyXdaP4mYoP4j5rXbm7vZaSKMuyrGaIoF3D6iPU5rPqSNEFpIgWJRyoo0ZCjMc4mKkYJ7gySRRYiPQsjfinhFQCUQb6iqu5DLMhozyxSp0Kt4LsrI585paUUsohyRR7PKDe25hc19LcyJUkYySnzKnTJzIlSRhLJlpzVHay8yHMY0yS3zadrJzbERlnoUZami2GeVqLJF1l9xyvyWiiyR0yKbVUSyj8ySyNMYHKgop9iyRJdCOVeECSCNgVXuWKmOV8rSJXgldSqJz7CZml103Pdo0ebUaS/M8CZtuHop30fZM7ek+rkxn5Z5+Ma6gAH0riAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAcVrEeXUq69zyR6my4ihy6lJ/eSZrY9T53mmuWz8uzH9sXZRl2UZXJMVYXUMHLl4qyZdCpbsV7k5ICr6luxWXUxzWije5BLI7HPtZaL2JKwLnRxXwrQMgk6JfCqGQSyCl8pirKSMj6lWc+a0Y2ijMpjZyZtIqN2SDFZBKzn2GNyUIJJRCJReIqTLBdDEuqPRE6eGeVMlkSCTrigTghbliwIdABsCGOhBnck6Mlc7ksqc+eXlaLJ+Sc7lUMlZmnTImbvhlZuaj8RNEjouFo/30vkj1Ph17ubGMebxjW/AB9Q4QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHMcURxeU5eYmmXU6DiqP9xL8jn11R4HVzXPXXx/tZGUkXKSM8kqsqWKs5OReJW6IZCeCWZ924lJSRYqymV8DGyCWRnBzWrxaPRluxRMmLNePPXhFiwYTIOqZKaACG8EXIRJlWWIZjlVoqY5dS5WRzZ+i8V7AJFsGXashInBKRZItMUbQok8pbAwaTFG1YL4jPBYKU1uZUjq4cPCmVSiepGCUjokqqUSgixbtEEk4TGCLibQ0VL4IaMssEysbRXuZGirRycmPleKdiY9CcbE4M+2xYR1HC8cWlSXmRzGDreHocunR93k9j4Rjvn39o5+ov0tmAD6dxAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANJxTDNrSl4l/Q5pdTrOI482nSfhpnJx6niddNczq4v2shSRfsVZzZVdRlWWZWRx8lWirCZEirZyZZaq8jJkhsrkNkd/hOlWUZZhIzt2lCQSJJLYzZahNjmGA4+DSd0V8HMGyGiGibcjwnO5GSCH1M7lVtLMpLqMgzt2mJWwwQSmxKLJEojITLSxCSUQ0SXlQvBbdTNExU18Jlid3F6M6skTgJEm8QJMnll2wTEuvYvNVCijLHQnD8GRAXGG2PlYawZA0n1K3CJlYmsleUy8qISMOTCbWlY1EjBmwkY2ZZ4yRMqiOy0aPLptHPVo45Hb2MeWzpLxE9L4Nj9eV/DHqL4jOAD6ByAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPFrMOfTay9v6nGRO5vo89nWX4WcMup5HxGfXjXRw+lZCjL9irRw5NVH1KMyPqUkcfItFJFHsZJFTkzjSMbJ5vIaI7nPdyrLLcYIiW6mmPlCGESDTGIoADeRShGCQWENEYLMFbDavKivKjIQUuEW2pyoKJch7FeyG0YOT4u4ytuH41KVG3qXd7CHPKEfq015kzrT5H/aJTuNOutYjc0av0XU4wVK4ispSWfhf6/sacHDhyZzHIuWng0j+03WIX1vf6u1LSq0+V0Ix+FR8xflfI+0UatK4t6de2qKpb1Y80Jro0fn66hZVLagriKouOKdWUVyxmvLXaS/qdH/AGecQ3HC+r1OH9bqp6dVknQqPpTctlL/ACvH7Hb1PSYZTu45rXspjnfd9kgZYspFcuz/AFMsDm454TUplkEicbG0ukJRZFEWRaZo0uCMkl+80kAFbmaCpLKmWeS0iWY31ZZsrLHYxyy8LQguaSXl4O6orlpQXhI4mzjzXVJeZI7eO0V8j2fg0+nLJzdRfSJAB7bmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAVqrNKa8pnCVFy1ppdpM71rKwcNeLkvK8fxv+Z5vxGeMa24fdRdCr6lkRI83L0bqMoy7KyOPki0UZVlyGjlyi8Y5EYMjIaMbisqkWJwMGmOCLVcAsRgvMVdiQJQN8FaEMnYLd+xr2oRgknG4wO0UZV9S0n4KN7ZMM9SrwbIbK58gxqVux59SsbbU7GrZ3tNVKFRYafb3RnXQtnyU3ZUvjWvcPVdOu/wDhl1FVVUWLarLZXMfuN9prs/foc/Wqv0KVnqFLnhTbja1prDa70p+H0x8z7vrel2utadUs7yL5JbxnHaUH5T8nyrW9FrRvZ6bf05VL1Qymto3sF0cX2qLfZdcrY9Pp+pmfjL1Uyx16Om4C4qlSVDStYq5ozfJaXUn0f/an4fjp1R9ISw8Pqj8zqvUtJuhc5q21TZSezljz4mv9j6//AGccWLUqFPS9SnFXlOOKFaTx68V2f4l0/ItzcPb9cVld4iclE8PfZk5ObuW0lFkyiZZMmZGl8lslCSdmlgQ2MlbTSWVGSuTLLLytIkoy2Sr6meVWj16THm1CjntJM7I5PQY82ow9k2dYfS/CMdcNv5cXUX6gAHqsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA4rWI8mo1l5eTtTkeI441OT8xX8jzvic/wBqX8tuH9zXQl2ZZmInODxpyeNV0WJl0IJ6hmeXlMUZHUsDC47WVwRgtgJbkdhswQy7Ks17NIVwF0JAmKNhVlyGi/aKkoYKVqlKhTdS4qwpU11lN4J9EMmSu76LJyOqcd2FGtK30ijV1Ouusqa5acfnJ4OM1DjHiTVq0qFnSdFJ4lG3hzNfnj+prOLPOeIbk9X12pKFPerVpwX4ppHknqOnReJahap//mI+UQ0KF84y1biO+oT6tVKNTH7RM/8A4R4ZUsy4okpv71GeP/4lL00n7r/gmX2fVKdxbVv7m6tp/KrH/czOEuvK2vK3R8pfCFk99P4nspvxNVKbf5qJlpaVxbp6zpN6q8V9y6jUT/KbyZ5dNjf25f3Wmf4fUBlPY+bUOMOKdOkqWtabCS+9OHKn+cVg6HTuNdPryhDUqFbTZy6Tmuek/wD1Rzj88HPn0/Jj51v+FplHUJY6Gu4h0elrmn/R6s5UK0Hz0LiH1qU+zX7Gyg4zpxqU5xqUpbxnBpp/miyMZvG7iz41q2k1Lyrd29zQ5NUoLN1bxWFXgv8AHpe6XVL7vQ5qjWqaXdRo3Kbt5tSpXEHhxa6SXumt17dD7pxFoa1mjTnQq/RdSt3z21zHrGS+y/MX3R851XTaepUbxytJUbyhLF/ZLrCW2K9L8L2bS99j1un5++arLKO74J4n/wCLwVhqEoR1OlFOM0/huYdpR98dV8zq/mfne1o3NtONK3q8t7QfrW8ovHqR8wfnyvmfYeBOK6fE+nuFflparb/DWpdOfG3Mv/vuZdRw9v1Y+hjd+HTolFUXSOaRdKJCRJOg+YyAUtsSq3uVyTIq0YZZXa0i2QyESl52Jl2Ntw0s3sn4idOc9wxD+LWl4SR0J9b8Lx7emjg57vMAB6DEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOY4phi7py8xOnOe4qjvQfzRx9djvhrTiv1OfAHY+d1XYMPZEroQuhOkAJZHYjtEErqPkF3LdqNqsYJ7kp+R2iuAiWBIAHY43jviGVnUpaRYNu8udpcnVZ7Gkxt8QZOKeNLbSua30+Kur17LH1Yv3PnX/AJ1xTdznfSq16cHmSUuSjD5s39jw5Cd7KNWvyUraHPqFxH6tNdfTj5l0y/me+tWo3lGhRjaT+gN/8hpNLb6Ql/iVX4/J9To48ccfzUW/Zq7S1to0OSlB3lOn1jRf0e1XzksSl/pPbacRV/T+j2lxStIrpDTrNS/9zSbOlsuGFdclxxHGncVUv4dnBYoW68KPR/ojpqEVQpRp0IxpU4rCjBYSLXKe/lXT55yajeputQ165pvdc7UP2UzzS0O5qJ54fv5PtKdf/wDsfTpOTeXJsxv5mVzs9E62+V1uH9VpJypaRWSXaSjU/mzVfS5WV5G31Th6VOU3iNxTm6OH78h9n3FRerTcKqVSD+zNZX6FLyW+sTJr0fNY0uIVRf8Awtzqwa2oXVz61Nr5Tf8AQ1UZ6iq1SheabT0+++1Qi1KhVXtB/AfRr3hjRrz+/wBPpKX3qXwNfoavUeDpfRHDTL6pNLeNpfP1aT+Tf1fmkRjnJfMLL7OFsOJK/Dl56dvz2Ck/itLhOVvU/wAj35PyR9J4X4o0/iBelTf0e/ivitpvr7xfdHHXc529q7LVqLjPo7HUo+pQ/wD06zy1/pOf1DhinzQnoDuLPVIfxI2NWe+PNGp9r5YQ5OLDkm74v3TMq+4YxLfY0/EeiVNQlR1DTJqhrNqn6U+1aPenPymsrfycjwR/aIriotM4of0e7g+SFzJYUn4n4f6n02C2Uk001lNdH8jmmGXDl5WtlfGdb02he2z1CxhUtvSq4ubfpOxr+V+CT8feNVUld2lzQ1ixao6hQl8XJtGvjr+f8z63xPolS4qy1XSlFalGn6dak18N5S7wl5eN17pHAOnawTUFOrpdz8EoTWJ0ZLrB+JRaaT7xT6HXhyTKK2PpnDOuWvEek07+zeJPatSfWnPuv5m2XQ+F6RVv+EeJFUsqiqwqrPK3iFzT7P54Ptel6ja6rYU72xk3Rns4y+tCXeL9zn5cPl3ePotPL1klejJyYXKLaB3IyR1MrdpRLqGWSJwV7E7UwSTyk4EwTt0PDSxQqP3wbk1nD8eWxz5kzZn2PRY9vBhPw83lu8qAA6lAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA0nFEf+VpS8SN2aviKPNp7fh5MOpm+LKLYfujlMDBKB89r3diMBoskTgnt2hXBDRfGwwTMTbHgKJkawQkLBjxgYLtDBWwY2iUixAiXl1W+p6ZptxeVvq0o5S8vsv1PlvD30m7va+rOHq6tfzdK0T/AMOP2p/klJHT/wBpN5BQt7Kc8U/Tdace8nukv1SPHwzUnpGiUtTqUfV1K9zQsqK6RXd/s2a4eJai/Zj4mq22kOw4ctM1IKSrXaju69V74fzbz+R1vD+kzsVUvb5Rlqdwvja6Uo9oR9l/Q53gTQ5y1S+1fVX69z6jjGT6c2d8fLdHePd5Zfepr3QpgFmVZW0RL2K4ZbBJHqKKPknlLAnQrgYLEIzykTEVYRq0JUa0I1aMliVOaymji9d4blp1rKWn0Z3ujQfqT0/P8Sg/v0Jdn7Y7I7fBKynlPDRjvtvhZ8V1jToatClcUalKvdTeLW8a2usdaNVdqi6dXnKOg4C4jVpGlb1qk3pdSp9HlCo8ysq/3f8AK3jxvI3PG3C0buxr32jx9G9i1Uq04fVq435sfeXX9DiLevSqzV44ctO5xaahHt6nSnVXylyL8jeXHPDVRq7fampRljujlOL9BlWVbUdOpKVSSX0u3X+Ml0kvxLb8smy4W1GpfaSoXH/V2kvo9b3x9WX5xw/zNtzNPK6nn9148vDTW3yClSo6laKxrVMbudrcPrTn1w/Cff3we/hzUr/S7mVd0JxvoNwvrLtcqPWcfxr9+Y2PH3D9W359a0iGYLe6torqvvI12l3lDVZ2cZXDjO6kowqr63N9mpF+Vvld8roduOuTHal8Pp9hd22o2VK8sKqrWtVZjNfyfuejlOD4Jr3MOLtQsZJQdOD+mQp/3U6qzipDxnut+h3xhlwzGpmVV5SVEsO5E45E7QMFgX7YhGBgkkt2Q26fRljT6fvue08+nR5bKivwnoPp+GdvHjPw4cru0ABoqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHi1mPNp1b2WT2mC+jzWlVfhKck3jYmeriCSUgfOadpEuREkvIgwMAkvpCskRjYmQaKUUZDJZVmWV0tENhbtLyQzFc3CtLatcS3VKDnj3SMbnpOnEalbwv8AiLWdVuFz29lSVrQi+kqklj/5F/Uj9Itox3+hUVbUljrVmsyf5KUv0PPpFwrrSMzeFRqTvLld3PdU4v8ANRNxwvZqvOFzUfNCjmeH3qS3z+SeDfu14vsj8uisbWFlZ0raHSC3933f6noyQ3kgr3mk5IHcEzI0kZIBPchORkgE94EohBdSlyTIuCuScmOVW0tF8sk12PmGv6NHS+JrqMN7C8p5dP7qk+XK+Utz6bk53i23U62n3MlmHx2s/lNNRf8AqkRx56yTZ4ajgy8lQ1tW1xtUr0/o9TPeUN4S/OEV+p3ON9z5rdtUZ2N3zctWWabl39WnJpZ+cI/ufSqFWNzQo3EOlWCn8m1lo05MJbMkSskEujScWsNPuj5/qHBur2Op3EuG6lFWFxLn9OpjNGX4T6HFbF4mvHNK1pOEuH6eg2E4Sl6t5WfNWq+X4N5gnAGWO7ukRyhlkClx0lQCovheOpFNNrMupnMvq7U6XQQLUlmrBeWdGKHX0Fy0YL2LkR+qvkSfSzxHAAAkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACtZZpTXsyxEt4v5CjhZrlnJeGQZLtct1VXiTMSPmsvGVjtnouiV0KItktKLBkEsvtCr6hkPqSygpIrIvLqUkZZxaKN4PFrMHU0i7ivuN/oe1mK6x9Duub6vozz+jOXL1Xj5bSufStdaha4dStXpYXslB/wBGfSdDt1a6TbwW8px55P3Z8r0CjJX9CpUzitGthPo8KX+x9a02fqabay801+x0cs0q9AAMtJCAGy0qDIAGwAA7gAyMmdyTBvYjsSGZZZLSITZ4OIoKeh3WVlw5ai9mmnn9jYIrVpxq29eE1mMqU01+TK45aS4PXLB3WnXtCm81OelcU5+OaEU/5s6PgC7lc8M041MudvVnRefaTX9DRWz9OlTc5ScalPlX/pqY/kja/wBnyT0rUJR+rK9qNf6pHdv6ao6yLWC6ZhimZIotjVayZJyVXQYZfYsmTkqkMlKlL3GM43wR7jO2exExE9DNYLnvqK/Ejztnr0dc2oUvZk8fnlxx/Jf22urQAPqHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAON1WPJqFZeZZPGbDiBcmpT90ma5M+b5/HLlPy7cPOMWJT3K5LGcyTpZMnJjJTLzJBP2LdSrYzgd33EyPNeV4WttOvVzyQWXjqZ3v3NZxJDn0K75XvGPOvyKZ3aY1kOJ2604T02tyw3lyNOcV5wbuwubfULeNW2mqtCqnH9dmmjk7KdhT0KyubinJX1zcyjSuqK/iQn8OG34PXwHc1Kz1d1oxjWp3PxqPRvC3Ms8Jq2eyY421xR1CnSzj6Jfzo48Rmsf/I+k8Pzb0qMJdaVScH/AKmfPuMbR2Op3txSi1OlcQrSx9tfDh/qdnwnf0r53royTg1Cq1914Sa/XJrl9WMp6Vv8AnsBIhGCMEgrcRUEshlLNJQ84eAum5D67Bbmd8JGEAY5VaROQCMmNy8raSitxPktLmXilN/+1kpnh16r6WjXTTxKaVNfOTx/UmXzocZrlf6BpFlUzmcaDbXzm3/U6f8As9pOnwtRk+tapOq/zk3/AFOG4suPpN3Gxg8SgoU5e3wr+p9P0eh9E0myoJcvJSjle+EehctYfypWwgXwY4sun4LY5K2LEkIk02gIJII9UiJa+Jvp7BImo/iftsW9Ij3UZ7+H481/nxFmvbNtw3HNxUl4RXpPq6jGHJ4wroQAfTuEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAcrxQuW/i33iadM3vF0P4lCXs0c9HJ8t1+Vx6jKO7im8IzJkpmNZJyc05Nr2MqeSUY0yylg3xz2rYt3KtkuRSTGWRpEl4PPqEfU067g1nmpSRnyIx58x+8sGFy8rPnlOcZcPWClLl9C5l09+XH8jY8DSUNTv4p73S9Z+7X/+Gsc40dIv+dbUmp9PDeT28MJ215prbXO1UpvHdOOV/M6M7e2obHji3btqd5GOUo+jVXs38L/1NGk0K4Wj65b3FNZsb6io1sfZkvhz+qO2v7f6ZY3FrLrUg0v83b98HzivdRs6dKnWjy4qYaf2JpcrT9msy/Mz4OTux7U5Yvqu22HlNZT8ryDScMX/ANJsnbzlmtQWV+Km/qtfJYRuFI0nJJdVWxkKkcwyad0qAhk5Ie5nlUxRvD2JTbQ7+5HUxtSNvI3JCObOrxDbIJZBz31WSjUcQVFUnb2aaSi/pNdvpGnHf+cT16pqFHTKHqVviqP6lJfWk/8AY+eaxqylb3dxdVXKrcfDyQf1vC+SNeLC5XcKwcN0VrfFtSrvJTrOos9oLp/JH17OW8dOxxX9mOk1LLTKt9cQUat19Tyo/wD2jtY9Dq5cvq1PZSfdeL6F0sGNdTKicMkVYEIGvcjSckrL6dShaLw8k45eTSyeSsmXawsruUkzTknbPKJ5UZvOGY/DWl8kaJs6Ph2OLSUvMi3w2d3US/ZXm8YNsAD6VxAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADQ8WR/wCXpT8PBzETreKIc2m58STOQi9z5f4rNdR/Mju4P2MvUBFl0OLHHbS1CRKyiyQwaTHSu0YYwSC+toVwTH4ZpklW9x2m3z/XaPp0dXprbKq018+VY/mYtPmqWq6K0/77ln198P8AkbDiSKV7qrltCEoTf/qbX9Dm6dw6Npw3c4adKt6Lk+/xZ/qbSbxS+pz+tLHk4b+0fSakrWpqVrFyp4SuqcVvhdJr9jt2/jfvh/sRs1KM0pRksSi+jXg87DK8eW4u+XaBXuLONGcK3NGKVS3rx3wn1jJd1v8AkfQtK1m31GXpVMW153pyfwz94S6SXyycxqugrQ51atrCpV0irLmlGG87ST6yiu8eu2/U81Sp9FoQdWELvT6m8J0m+XPmMusJezaXsd1mPJ5ij6G4uLxJPJGPc5rStYr07ZSo1HqdouqliNxT9mtlL8sm6s9W0+8koUbmKq/9uonCSfjDwVuOh69/IbeCzWHuirM8qlGWTkgh57GOVqYtzDJE3GnHmqzjTj5m0v5ml1HiWws5clGX0qt92m8JfNvYyu74i2m76/Lz4Od1niOlbqpSsqtJSivjuqj/AIdP5fefsjkNb4tuNQr/AEWE4x5nhUKUsL/1S/2Zns7TT7WEbvVnPUasN429OLjQpv3bxl/my2PBcfOa257Mfp3GsU/Xi7inZSlyu4qL+Ncy+7CPZe+Da2Oh0a11GypRhKcUnXkt40Y9eXPeT7/My6ZS1PXqsrmWLO3+rCajjkj4gv6nXWFpQsbeNC2hywXVvrJ+W+5fLk7PEV9XppwjTpwp01ywglGK8JGWJRIsjOUsXMiMSRZJ+TfGqshLKg07kJyTEqTEY3yL822OxRskoy3JnbPJIiR1OgR5dOh7ts5WXQ67RljTqPusnZ8Jm+a38M+o/a9oAPonEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANdxBHm0qt7LJw+cM7/AFWPPp1ePmJ89bPmfjk1y45fh3dL5xseiLLpnnhIyp5PN482uUZcjJRMt3OiZKaanW9dp6Xc0LaFH6RcVFzyhzKPLHzu0bCwvaGoWkbi1nzQezXeL8M5LUranLje5urqnCpFUFTpxnulLlTTx+xq7OrqWh15X1nT9WDb+mWce6XWUF5R044yzwivpDZRyXRnm02/tNWsad5p9VVbea/OL8NdmZ2jOjluJ6TlfahBJYr2HOvnDmf9Ti7tyqcK28o/4N4pL/2n0LX6f/mGmSfSsqtv+qS/qfOdOXPw3f0Kjf8ACrfp8Rrx+m0vrVL+Lb0KsX9anF/sNzy8P1PX4f0+aef4eP0bPYzzOSaysXx9F08fn1T7mguuG1G7q3ejV1azqL+Ja1I81Co/8ryk/dI3sfiXuSnjZmvHnpFj5jWrWtDUJ295Tq6JqEXhRm5OlP3hNZa/Y9N3f1Y2TpX9nG+pdVWocqqx/EpJpv8ANnfX9jaalQ9HULalcU+ynFNr5M5apwu9Ik/+F0JXljJ5dBVHCrT/AMr7r5s6sebG+MldKaZxZOnSjD16d9TisctWLpVoez2Sf6m0jxK6v/T6bVn86tNf/I0krbRLrKubqvbV08OneUE3H89zyXXDOkV0/T1+jST+5zL+SIynHfJNukq6/dxX/QW9P3qXEdv0ka294inGP8TXLSD/AOza0+aS/OUf6nMz4Q0NPFbXa9x7U6bk/wBz12nCuixa+h2Gq3cvDxTi/niRXs4lpWK6v7WtJOre15yb2pOUqk5v/KsxR6rHh2vfUXUu4x0iyk8udeSVSa9kspG/0nQ7y1X/ACVpp+lxfWSgqlX9Wv6mwp8OWkqqrajXuNQrLvXm3H/TnBjnzY4/tTJa0Njb6HpuKHD+lT1S7e3rTj8GfLcv6G8t9GnXqRr6zUhUmt421FctKH5LGfzNzBQpU1TowhTgvswXKv2DPP5Oe27aTFaOFFRikoroksJF0YU8MvFlJls0zRZeJiizImb41FZEWMaZbJtMldL5IyVyRkd2zS+S62MSeWXbL4ZFiWyrYbKtkZZbJEPdnbWEeWzox8RRxMPiqRS6tnd0o8lKMfCwev8ABJu55fw5+q9JFgAfQOMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAY7mPPb1I+Ys+bzWJNeD6XNZhJex84vY+ndVY+JNHz3x/H6cMv5dnSXzYxpmSLMKLxZ85hnp2WM6ZZGOLyXT2OvHNlY1uvaNS1i2aVSVC7iv4VaPVPw/Y5TTbu6q3ErK/X0fX7T60Y7K4gtlOPvjGV7s7003E+hQ1qjSq05ejqds+a3rrqn4fsdXHyz0qtjnreFa1uJ6lw7yq7m+a509bU7qPecV2l7Y79TrNG1ix1q39WyqfHHapQntOm/DRxlnOpUvZW9b/AJTWIz56lPOI1Jfei+0v55Jv7Wtd30dW0hxocR0v7yCWFdJdU1979eptfPqh1fE2IW1jX3/5e6hL9Wv9j5za0sXOsW818Eqq/wBzto6zQ4i4WvKlCPJd0Y81ag+sJRORp1fWralUpJymqqlyrunFInj8SymnZ8ETa0FUXv6FRw/r/U3cupznBk3CpqFCXVuNZL2wl/Q6RnDzzWVXxVi0mX2Mb65LJ5RjjlpNixDEk1FyltHyzW3WuaXaNqte0udfZg8v9C29+hI99eFOukrilTrJf9yPMedafYf/AIG1/wD2kaG7410yk8UqVetJ9NuU19bjC/qf9Hpnpp9JVd1/ITHk9onUdtRpU6KxRo06f+SOC9So+XNSpyrp8TPm1bX9euMqNz6UvFFZNZW/4nqVlqFze3f02NlHmnRqPl5emGuu+6NJx5X1pqR9azhFXI0PBWo/8S4Xsq0puc4x5J83VNeTdpLBx817bcatIvkgIk5rV4joWTKsJkTLRpmiy6ZhizImbY5osZEyclEyeYv3o0vkZKZDlsPmeDS8XuWbMUWS2Xx5PBpfJHMUyQ5FbyGnos1zXdJd3I7tdDiNGj6mpUF4lk7c+m+BT/ayy/Li6v8AdIAA9xyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAfPdcjyapcr8bPoRwnE8eXVquNs4Z4fx7HfBL9q6ukv16aruWTKNkpnyEuno2MyZdMwpl0zowzUsZUyyeTEmXyb45s7Gt1/RLfWaHx/wrqH93WXVezONva1zaTlS1CjN31DdVIdZxXf3+Z9EyePVNPo6lQUKrcKsN6daPWD/ANjow59eKjThqz+kN31lNW97OLhUnH6tRe68nhs+Xluq/Ok8qjNw6Z6p/uevU9Nu7W9atoxp6hFfFby2pXkfwPtL2z4PFSnQvdK1CNjb1fpU2lVo4/i0pL8PVr3wdczlm4Og4Xu6dLVaCrVoQ9SjKm3OWMtNs3d3xHpdvW9FV3cVl9ihHn/kfPr6tqGm8turSNxXjFSlS5HJxz0e3Qm3uONKlNwsdOVrTkvrKly/vIyz4Zn52Tw7mvrGoVY/8lpFWlF9K13Lkj+6NFf8RXFpJwvtbsqc3/hWkOeX68xyt3outVmv+MatDD60o1FN/pFl7fhyvTjmhUtrVL/FupKP6JtMpOHjx82rbbCtffT5p21C9uZd53Mvhf5YQcaNFc+oXNjbRX2HUSx+WTFDSNO+re6xe6hPvRtKb5X+aTNrZ6FafDKx4Zm5L6s7yr1+a2IvLx4+hq1rY6xo0Zxjb1K1y12tqTSf57nsldV6tPNvos4w7Su5bfyRvqOk6pPClWs9OpYx6drTy/1eT1UeHrCKTunWvJ95Vpf7YOfPqOOLTGuM+lX1SryO5pNPb0LaPN/JmztNG1GtHKtFBPdO5liPz5dm/wBTsqNGhbx5behTpR/Ci7k31ObPrPbGLTBreHdIhotnUpRqepUqzdSpLGFzPwvG5tYy7GLI5tzly5bld1aY6Z8k5MXMSpFLknTIGV5ic7lbUilhmSMjE1sVy0PmaNbenmRKkeZTZKqE/NT2vQ5EOW5gc8IjmyVvKdr0qRLkYM+5OX3LTmO1k5iHIpkJiclppueGY82pR9k2dmcnwlHN5OXiLOsPuvgmOuln815XVXfIAA9dzAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAcVxfHl1RS8wR2pyXGkcXFvLyn/Q8n41j3dLfxY6OluuSOazklboo9hk+Gt09XTInjqXTMSl5LLyWxyRYzJlkzEmWTN8eRnYvkZK8wyX70aYNQs6GoWzoXUW49Yyi8Sg/KZw3EOlV7a6oVKlZ0LyDxb6jTWFU8Qqrpn3wup37Zjr06dejOjcU41KU1iUJLKZphz3Cna4i1164jfUrm6oQp6lRXp1nj4biHv4fh9Ohgnc1r2peKlc1bi7c/Up0Jz5UqfdJLGWv6Hq1zh67s6TradJ3VCn8SpS3nBeM91+rOaVrT1mCrafUnbajQefScuWSa+6+/yZ14XDP6ojWnV6ToFpqFH6RHUak+06dOKTg+6eVlG7t9B0yjj/lvWkvtVZSl/XB8/sdekr6MdQm9O1WHwq4UcU63tUj598Hc6VrtO7mre8Ube88ZzCp7xfQ5uonLj534WxkbWnTpUVilSp01+GKRbnfdsq85wyrZ52We2ki/MVyUyMmV5Fu1bmIyVzgZ23M8s0yLZIK5JjLffoU71tMNW/taVTkqXEFNdV1Mb1SzX+PFnzqWiaxU1S4p1oVFH1JP1M5Ul2wez6DHSpqV3KU4R3lGo3nB6P8AT8fj691X/wCnaVNds6fVyfyM9nq9rdwqypTf8Jc0k/BwNjoMuIISrUa9Slbc2z53l+xv9O4ep6Dpl/OFaVSU6ePibeP1KcnHw4Tt7vq+xN2+jpLDUre+5vQk+aPWL6nrzk+Z8DXdSfEVSEm8OGOp9ISaRh1XH8nPtTj5X9kau94g0uxvqdnXuY/SpvChHfHz8FeJtRlpOgXd7FNzhHEElndnzLgfh2+1HUVqOqKVKhzepOdXZzf5lum6fDkwy5eS6k/zS3Vkj7HnOGSjEpLC5WnHs08l0zg2uumTkx4LGkyRpdMlNZ3KZJRtx5au1bHV8Hwyq8/GEdIaPhKOLKo/MjeH6N8Lx7ekweL1F3yUAB6DEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADneMqfNbUZrrF4OiNNxXHOnJ+Jo5OvwmfT5437NOG6zlcJLdsrkyVcKcsdDF0Z+c8k7crHtRdSx2LJ5MROSkyNMucF1Iwplk9y+OSLGXIyY8jJfvV0yNkNmPIctiO/adLczW6e5yvE/Dv0ictQ0yCjdR3nTj8PPjvF9mdNkjmx3Jw57x5bie184uJWmtW0aWtRxJfBG7jDEqb+7Vj3+e5o77TtS0RxpSn61m96c1Lmj7OEuq+Wx9K1nRaV9OVxbyVve4xzpfDU9prucrQrXNjOpYXFvF8287CrvCa+9Sfb5bHo8PVd0+n+3/hW4HD/ABrO1nTs9a5pUukLnr/qO9o1qdelGrQqRqU5bqUXlHzaenadcXSt7WpywrrNOnX6xl9yf+557eWq8NVqj0tzq06W9ewqvLivMfKMufp+Pl88fjL7eyZuer6lkjJpeH+I7PXKOaLdOvFfHSl1Rt2zx+XHLjy7c5qtpNrcxGSmSMmFyWkXyTnYx5JT3K3JOmRTfTL/AFOJ/tClJ8+Fl+j/ALnZp7nJcZJVK0ovDbjGOP1Ovoctc0qMp4Z/7OqsZaGqa6wlujd8RT5NDvG/uHLcAzdO7u6H2VhnRcVy5eHbxrtFfzNOpn/V/wA2Ixnh870HU6mm3buLWj69Vx5Yw9zbajxDxTpdKhqOoU6dO2qSS9PC6eDHwbGnPU6NNxi4qPPjHfBuP7U2p6Hb039aVXb9GehycmF6nHjuEu/Xf2VkvbvbpaupWz0RX9enGdFwU1CSym32wcw5Xmry57qagsc0aCfLFL8jBqtSdL+z2yll7OOf0NjodrS1fTKVxO9cMx3UXujjwwx4ccs/zYtvbFwTdVqWp32l1udQglUpqcublTzsn+R2KkuflfU02hW+k29zXjp1b6RdR2q1JScpfLJuYwSz79Tk6nkxz5NyaTJpkROcGPl9yyMZTSyZZMpktFm+F8q2O64WTWlRb7yZtzW8OprSaOVjO5sj9R6PHt6fCfiPB5bvOgAOlmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABquJo82kVfbc2p4tah6ml3MV15GYdVj3cOc/FX47rKV85kYn9bcyvOcGNn5ryPchklFXsMnNtbSwTIyMkzJGlskZIzuM5J7kaTkZK5DYuadDZXIbKtlLkmRLZ49V0+11S3VG9hzKLzCa+tB+Uz0tkNlfmXG7i0j5xxbpt1ZfxrrNZRwqd5FfFJeJ+/v8AMmOt1Luztq9f0Vc2m6uubE3HvFrG+fmfQqsYVaUqdWKnTksSjJZTOTu+E5J1KNjWpQsq31o1IZnD/K8npcPXceeMx5fFnur2X1jR8C0a1xr1a9owcLbf5fI+k8x49Os6On2dO3t4pQgsfM9OTg63qfn8ndJ4aYYdsWciuSMkLJybX0vkZ3KjJXadLp7pHG6zcwvNanQbjGEJpTlL7KOw6mo1ThzTtUuFXuIThXxhzg8cy9zo6Tlw4895oym54aTgyr6mt37pLNOGI8y6M6LiyMqnDd7GEXJ8qe3zM+l6Xa6ZQ9Gzp8kerfdnuwmmmsprDT7k8/UzPnnJjPE1/hEx1NPnnA1KqtZU2k6fprll52Nxx/Z3N9V06nQpynTjJttdnv1OltrG2tpuVvSjBvd4PUm19U15Ou7uec2M9FZh4008tFhecMR0yu+RuCxL7sjjaHDOt28alord5eyuISxGS8vY+lLm7tFvix12KcXXcnFuTzvyXCVqOFNBo6DYenFRlXm+apNLqzeZKonJzcnLlyZXPK+amTXhJJAYglF4bywURko71Yr3R08PnKRTL0fRdJhyabbx/Av5HrMdtHkt6cX2ikZD9Z48e3GR87ld3YAC6AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMV5Hmtaq8xZlImswafgjKbliY+Xz+s0YpHouoclxUj4kzAz8w5525WPdx9FGVLNblWceTQySVIyU2lfIyVyMjZpPfIyVbIyO40lsqw2VbK3JMg2Qyre5DZXa8iWyrZBBXaZE5IyCCqyQR2JIoEkEojYkldSCUBZPoXRRbl0VolFkQiyG0JJIJEokkgktEJRJBJeIqUtz0Wcea5pJdXJHnNhokFPU6Ca35j0Ohw7+bHH72MuW6wtfREsJIAH6s+dAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+gAHzjV48mpXC8TZ4ZdTfcV2c6OoSrY/h1d8+5oZH5z8Q4rx8+eN+72+HLuwlijKln0yVfU8nJvEMglkGVWiCCSCAIe4IfsEhRlmVKrRDI7kshbsirIfUg5t69ef8WrWv0ekownyqEniTXlPp+566XEVg5qnXrRhVzhrDaRvl0nLJvW/4RLG57BYb32Nc9Y031XTd1BNLLeHj9TJZ6nY3k3G2uYTlHqjK8XJJu41Z7FuiTnr7iCvYXEld2DjbNtQqKW8vyyYv/E84YjXtOSdTDo7/AFs+TSdHy5TciO6R0z2JOTuuK6lD+DUt4UrtPDUnmP7G/wBLvZXtrCrOME5LL5XlFeTpeTjx7sp4Ny+HuJ6PD6kInGWmzmWXRZdSvRezLRIQsiyKIughKJIRJAkkIFoJRYqiTSK1bubXhyPNq1D2kapdTpuELJyqSupLEY7R92ez8G4cubqsJj7Xf9nN1OUx47t1oAP014IAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANBxiv8Ay+EvEji5Lwd1xZHOkyfiaZwz6HxXx/HXU/zI9To7/tsTRCxndFmUfU+by+7tirIZZlWYXwuggkghKAGCEqsqy73KMrUxVkLqWKlas53U9CvLydeLuaMqFSXNFyj/ABKfspYz+54bfhCdKhWpu4jOVVJczW6OvZHc6set5sce2VHbL5cdHha+p21e0p17d21TPxSjmS/YycP8M1tMuXVqum3jHwtnXdiOxOXX82WNxt9SYSeXLVtG1a5uriV7WoVqM01Sj/2127FJ8N3txClK4uKSrUUvScVssedjrRkr/XcsnjX9k9srkanClxUq/SJ3FJ3cm+ZuOYtPxsb3RdNem2kKHOpKPdGyJKcnV8vLj25XwTGT0EWRCJRy1ZbBaJVdSy2CFkWRRdS6IqEolEIkmCyCW4JSJiEkhEmkQlI77hqPLpFFecs4FH0XRY8umW6/CmfW/pfHfPlftP8Au874hfoj2gA+4eSAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADWcSR5tIre25wDPoutx5tKuV+Bs+dyXU+Q/UWOubG/h6XRX6axyKMyNFGfKZvQirKsuyjMb5WRghrYsQ+hnalRpkZZcjuTPKVMlcpmRrJVoi7TFHgqXaKtFatEEE4RDRCUAtgggEO4JISEkJEogSiyIwWWCNgixCRdEbBblkgiyF+6oluSgPmXgsEQiy6k7QnpgkFki0qEwWZJe59JsI8tlQj4hH+R85oLNaC8yX8z6VRXLSgvCSPtv0rj/AOpl/Dy/iF/bFwAfYPMAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB59Rjz2NePmDR84mt2fTK0ealNeUfNaixUkvdny36ix84X+XodFfWMD2KsyT6mNnyHJPL0Yhr4VLbco1lFmVZz1eIQYIKVKHsSGQwlDKssVYqYq2V9yWVZRYIDYyVqQEeQVSdCclQBYlMqT8iBdFkUgXK0WRZFUyyYQsWRRFkTfQWQILFtoSiUQicCIWSLIhFka4+qK9NhHmvKC/Gj6OfPtFjz6pbr8X9D6Cfe/pbHXDnl+f+zx+vv1SAAPqHAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAfOb+k6N5VhJYakz6Mc1xdZw5YXUdp/Va8njfG+mvNwd8/4urpOTtz1fdyc+pRmSZjZ8Hy4+XrRRlWXZVnLYvFSCWVZSxZGSMk4IaCUNlWyzRRoqmIbKtktYKtFKsEEpEFakBOBgJQwh8yexAjGxbwQk8blkiAj1L/LqVSMiRAJFkEiUiNmkoskQkXSG0ISJSJSLJE7EJEoslsTgvPKqEWQwTFZZ0ceO1Mq3HDFFz1SnLGVBNs7c1HDVpC3sI1FvOpu3/Q25+l/BelvTdLJl63z/d4XVcnfyXXsAA9ZzgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHN8V1m50qPZLmOkOb4rpP1KVXGzXKef8U3/TZabdPrvjmKkU9zDOOD0TMTPhuTGWvWxrDJMo0ZmvBVo5cuKey8yYsFcGVpFMGN4qtMlMDlLtEGdwq0yUaKNGUNZKXBbbC47FXHYzYIcTO4rSsHLsMGXl3Dj3KWJ2w4fyCRl5QoEaTtjeW231JSLqLDWCLDauCcY6luXBPL3I7U7QkWQwSl5J7UbSupOAiSO02lFkVRKaJ+XUdyyLIx83hFk2XnFajuZCWyiLYNceORW5J6mWmsGNGWn1OvjkjO12nDNb1dNUe8G0bY0vClNxsJzfScso3R+k/Drb0vHcvs8Pn18y6AAdrIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAwXttC7oSpVFs+j8GcFcsZlLjl6Jl15jhNU06vZTfPFum3tJdDWtH0upThUg41IqUX2ZoNS4chUzOzlyS+6+h8z1vwXOby4PM+3u7uLqp6ZuQkijNjd6bdWz/i0ZY8pZR4mj57k4c+O6ymq7ZlL5jHlMYJcdyu6M0rOMSrgmFJrqOYnUEOmirpGTmQyil48anurF6T8kOmzM5IcxS8MTMq8/pyyRyTM/MiOZZM7wYrd9YeWRHLIzNojKK/Iie+sfpyHJIy5GdiPkQ76xcku45JeTJkjJHyYd9V5H5Ci/JfvsST8mHfVOTHctylkw2T8vGI7qQhzMv6aRVSx0DnkvOyRHkwTgguljqZZWX0Wk+5BF8FeZLueyzsLu8eKFGWH9qSwi3FwcnNl24TZlljjN2vMbfR9Kq3k4ya5aPeRt9M4cpUeWd2/Un15V0Rv4RjCKjBJJdkfVfD/0/luZ9T4n2/8ALz+brJ6YK0acaNONOmsRisJFwD62SSajzfUABIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAiSUliSTXueK50qzuE+ejFPytj3ApnxYck1nNpmVx9K5y54XpSz6FaUX+Lc1dfhm9gm6bhU+TwduDz+T4R0uf8Ax1/DfHqeSe75xX0q9oZ57eb/AMqyeOdOcPrwnH5po+pmOdClP69OEvnFHDyfp/jv7Mms6y+8fLWvBR57H0uppNjUfx28Py2PLV4d0+fSk4/Js5M/0/y/8co0nWY+8fPHzlHKex3tXhW0kvhqVI/oeWfCEfsXL/NHNn8D6memv7tJ1fHXFupNPGCrqyXY6+fCFTHw3MPzR5J8L1ovDr0v0ZzZfCOpx9v8xpOo465v1ZeNiFWll/C8G7raFVpzcXVpvHsyq0OrLpVpr8mZf6bz71r/ACt87Bp/Wfges/umyqaVOk8OcGVhpkpPCnEp/p/Mn5uLX+s/uj1ZPpE3ENEqS2VSn+jPTS4Yrzaar0ln2ZefC+oy9J/kvPhHP88/BKc87s62HB9X7dzD8kemnwfRWHUuaj+WDbH4D1WXp/8</t>
-  </si>
-  <si>
-    <t>Lục Trà Sữa Vải</t>
-  </si>
-  <si>
-    <t>/9j/2wCEAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAf/AABEIASwBLAMBIgACEQEDEQH/xAGiAAABBQEBAQEBAQAAAAAAAAAAAQIDBAUGBwgJCgsQAAIBAwMCBAMFBQQEAAABfQECAwAEEQUSITFBBhNRYQcicRQygZGhCCNCscEVUtHwJDNicoIJChYXGBkaJSYnKCkqNDU2Nzg5OkNERUZHSElKU1RVVldYWVpjZGVmZ2hpanN0dXZ3eHl6g4SFhoeIiYqSk5SVlpeYmZqio6Slpqeoqaqys7S1tre4ubrCw8TFxsfIycrS09TV1tfY2drh4uPk5ebn6Onq8fLz9PX29/j5+gEAAwEBAQEBAQEBAQAAAAAAAAECAwQFBgcICQoLEQACAQIEBAMEBwUEBAABAncAAQIDEQQFITEGEkFRB2FxEyIygQgUQpGhscEJIzNS8BVictEKFiQ04SXxFxgZGiYnKCkqNTY3ODk6Q0RFRkdISUpTVFVWV1hZWmNkZWZnaGlqc3R1dnd4eXqCg4SFhoeIiYqSk5SVlpeYmZqio6Slpqeoqaqys7S1tre4ubrCw8TFxsfIycrS09TV1tfY2dri4+Tl5ufo6ery8/T19vf4+fr/2gAMAwEAAhEDEQA/AP7+KKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACq93d21ha3N9eTR21pZwTXV1cSttigt7eNpZppGPCpHGjOxPQA1Yr5v/aP8UyWHhm38KWUwiuvEbF79wfnh0WzdXmXAww+3XQitxjhoIrsN8ucTOXJCUrXaWiuld7JXeiu7K72GtXvbzI9Q/ae8FW1+1tY6brep2qFgb+NLS1jl2sRut7e7mS5dCBlTMtsxHJRa63Svj98MtTiVpNauNLmbg2upaZfpKnA5aS0gvLUpnjes5X1xXwDZHw/aaY0+q30FjJ58j7riWGNpsrhQY5F3mNB5eHXAY+axK4ArgNS+Ivg63l8rRbu91q8RUfZo+l3skibsjPnssEQ+ZSoYFkIByMZrxMTnOEwKjLGZnltFzu40qtWEK0t3ywpKo6tSSs7KNNt2WmrZ2UsHWr8yo4bEVeVazpwlKK3+KXLyRT03kkt+Z9P180vxr4R1oL/ZfiPRrx2xiKPULdZ+SQP9HleOcdDkGMEdK3ry+stPtpLy+ureztYhukuLmVIYVB6fvHKqS3RVBJY/KoJOK/GX/hOvFmrTxDQvAtzGrKpjvPE93FbxsPlzMkdrCHR1BLKv2gswKqxypNeo6DrfxC0yAt4nfSdQ0yOSKUadp7ambnTUcKr3MQuLy5syw3KnlrCsjAZ8xeRXLT4pwNWo1So42rQj/ExccHiqeHgrXcm69KnKcV1dKNS0fe1jqazyyvCKcpUI1JJOFF4ilOpNt2slTlJRflOUb7LXQ/SGT4heDI0DnX7RwwyBEtxM/XGDHFC7qfZlBxg4wRXHXvxz8EWk0sEa69fSRlVAtNEuQsjM20BHumtlYcFixIQICd3QH5fbWWZ4obPH7wKxl2Fi3mBWGxXGSSp5dl6j92NvznWFlbyW4WcGVvMMgMhB+bIKSAYXnP348kAhlJPAr3IYuFSfLCzX817p9fd2v/Xc89xcUm1a/TqvJ9n5eq6O30PD8dPBTMq3kWt6apOPNudOE0S4P8RsLi7kBxzzFgDnJwa9P07X9F1a0gv9O1Syu7S5XfDLHOg3AEqQUcrIjqwKvHIiujAqyggivh2XToirE+WUUHO0qccg7CCAemcYDD0I5xlpYQxoVMkDOd7HzAjEbs/KGIyoB+hLFiOAuH7acZLnS5XstpXXZ7NdHorPq72TtFpu9mtelreSbvfvd+nQ/QhZoW+7NE3b5ZEPPpwTTjLEv3pI1+rqP5mvznurcgMRLCRgHjOTjjqMZz04OcDjqTXP3LMCyyLE6EEcCQsfQndnPPB5JyccCr9vFuytrf7XVdNrfNNhy6Xv+Hnbd2+fY/ThZI3BKOrgHBKMHwfQ7ScfjRJJHEjySukccSNJI7sqJHGilnd2YhURVBZmYhVAJJAGa/L+O9ks3W4txNazIyuJrKaezn3oMq3m2zQSbgM8ZIwSCpB21a1rx34p1PTxpN34k1u60h/nuLG8v5blZHXZ5UcjOXnlt1QO/kTSvEJERvJPBGc8XTgpNuKa2Tk431tq3HlXdq7aSd1oUqTe197bX7dm+/8AkfpTYatpeqxmXS9SsNSiUkGWwvLa8jBBwQXt5ZFBB4IJBB4rQr8dE8TX/hq+i1HSLm6sbiBnaO7s7iW2mZ2+6y3Ns6SOcZDLvdXUt5keABX1f8GP2i9SuZYdH+IlzALG6Zjp3iK4DR3EKOWEQ1SWOMQS2bSIbdL1kimgLwyXTTW7vPD5WG4iwVbELC1OajVcnFSetLSyTlOy5FKT5Yt3V1q0mmdFTA1oU/ar3o2Ttpza3vZXu7aN21s9tz7coqvDeWlwEa3urecSIHQwzRSh0ZdwdDGzBlK/MGXII5BI5qxX0BxBRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABXmXif4s+EvDF1cafPNdahqVqSk9np1v5hgmAVhFNcTPBbRvhl3Ksjsm4blB4r02vAPGfwTfxFreqa1ZazDaLqTi6e1nsHnZLjyUSURypcxBlmeMSDcgZGdlywANAHG63+0jqMSt/YvhFM4IRr+8e5djnALQWaQIo7n/SW2njvXy38QPFHiTx5rU13r4Oni7tYoJp9PnFkbeC3ZBHp9h5sszwpOJHa6ukLSEGeOCRJLgyRtupiHeMFo2R2idGDIySRuY2Vx1Do6FSDypXBwazTPOC2WBaM9WZSdp6YLKc9MZJOOhJrycROGLUorF8lNxtOmlBQlF7qTcVN83wtcy0bduprCUqbTdJtp3Une600atorOz2bva/ZY8Hh/wxsCjRrO5YAb5r2SO8md1dXQyyXM0s0hVgXVm4U7SMYC1rmxhjVBbW1tar5cSRrGttAFQDbjZEApQDcI1LA4Azt5q7Dcx4AdEGeThLY7Tjk5MfIHoO2QRk83o5dNkyLhowpxuLwwMCVJ27gsHOM/L16k8A151LL8DTjKNOphIN2u40YQ0V7axT91Xsr6dU7p33liasn73tppbuU5Tt1bT1s2r30tq463uQ6Zp9sZo2uFc7CXLPdeVHuiJIbbEVeZDgBkclWKgAEGust5bN1gT7IkYZHt4mtYsLOWO5RNkkuQ/zM0oZmIJBznOYlt4Ykzvns+eWBs8AnjHS3AJGPyzjnGEmg8PQL5lpcwRypnY0SSROCQQSpEIPIz3HJIPB57Fh4wi+SrhZJ2TXPZ6NJXXJLmeiau7rpfrn7RSab9pv1XR9Xadtdend9bLpLHV7NbvbI0YlTMYyYjKhUBAqIAuAVIUfKSR1IJxXQG+jZl3StwCw2Qykg9CpBUAP15DbV56cA+NpFo+5neK1eQnJZoIS5O7O8s+HOW5+Yg88AFRjoLbXhAy7liulCgIk0kqLnjA3W9xC5x7vgDrxioozVJtV62G1d48rneyvo242btb4Xrr5XVRXfuRqaaSukk33Vm29tnqtLNvQ7TUNbgtImedQkRVRltqs7A8KqsTuZsAFEBY8ZwOa5hNblv2Jhga2jztUzgF2wfvKgJG49VZskcfKOpV9bsrgh5dG0iRucNLNqbnHPd9Tb3PGCeT0qCfWLUrtj0rS4jzho3v2ORgZG/UWX5RwMqRzzngDSrKFaSccZGEEtYKT97X7U172mtlFJrq3YUZKEbOlJybvzNaJe67JXs3pa8k7WWyaM/U9VnEkdrbtvlPNzfXUoFtZxE7QFLFY5J2wRDCOF+8+OAUE8UcalZJJcgHzn+bzMj7yZwCCQQNuRgcYzmsyeWKQHfDb4JztMETKOfR2ZWOQDkjOfmHOKdbtYzSb726aLknc0ZkO45JICLIR36AAnOe2YVJOTUcTSSk1vJq3Sylro7Xu/eu3q1ZFurFpLkkrXvortO9uiat0W2ier1Jbm4MwChHaMHJO5lDbcnDKuD9QWJHccc4OpzXcCJ9lsTcT7uY5JkV9rtmMxwEBpE6FlVpGAyvBYGu1jfwqoHm67Mm35QiWt4oxyRtItto+bPcHJwfWs3U5PDssWLPUrmdxkJm0KkFcnIaeH5Sf7wAJ45HZYqhSnTdOONp0qrSfPB06k9Hfaa0s0rW2UXu2VTqOMlJ0nOC1ad4rR3ezs1K9neyvs1Zo8nvxqkt3cRvazbY8Luay8jEibQzKHKxpkllDb5G2gFmIyoo2sOpmUSXNzbpEvyiMXDyTKDwqqYYpIw6fwkFT3BKkrXazRbmZ3mnkAPBeVOOCSSNg5IP4c5Oc5oyyNGG2zsBx/wAvDDHAP8C5zyMAbemOACK+enkdB1fa1MdLmjNzSk3O7buruNSLaj0Tk01q1rY7Y4yVuWNJaxt7umi3to0rtNppJpqy8sSCzvtMvYtQ068uYZonM0cllJfxXEcvyFZEnHlNFIpUFHjYY2kDCkg/cXg79p9IdP0yz8YaHM9xFbQQ3mq6ZeQyTTPHGsbXE+n3ZhPnSkebMYrwq0jO0aAEIPiSWSRgQLg+v+tnIGOAMgjPQ9cDJxkYzXq/wc+E03xR1XXLZtZuNKs9DtNPnl1CLTlvo5rm+mlEdgyy3VuEk+zwy3AYO5VQhMZVwT7eUYbD4Kc4YatzvEP3opSVNzV5cyipSSkknfWzTdtWcmJqTqpOcbcml7pvXRK/LHS71ettraI/TLw/r2meJ9G07X9HnNzpuqW4ubWYxvEzJuaN0kjcB45YpUkiljYZSRGU5xk7Fct4J8LW/grwtpHhe1upr2DSYJYlurhI45p2nuZ7qR3jhAjTMs7hUTIVAoLMcsepr6T1OL+v62CiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKAPzr+POk/2d8StdezAtYL+30zVPKSOMRGa5tFS6lCFcEzXMEs0xH3pnd25cmvGLeea8jSWCWOTbLNBOTEARJG20DCsAOM7vcfNjBNfUf7S1kIvFui3oGFvvD/ks2BgyWOoXOeSOyXcYPU446Yz8n+HLSfTr3X7eZt0E+qnULMHJ8qO5gjEqA+gmjYk/7Y45r5PGqVHGySjLkqVKntHGo0oXg6sW4p7Sa5HZXvKOjV2vTppToNvl5owg4pxT5/eUGm7N3V7q97q9tUaEi3SZysJODyUIbnnPD5A6H0AwB1FVibsE/JCRxgBpBkj1xnGM9iSRxnjNbcoDljjhTzzgjIHHHvn0OOuCBTIokb6ZHOOAOefxP0xnjpXFUqLmdnNXu2k7tb7d73V7d9NUhRptbpW2eu17+WrXy0vq9b50QvmI228R44HmOO+DgEcc44JB56npUkovkB3W6EHklZ3BI6D+Dn17Ac54GD0ltbpwD7duxz1P046AcnHaprmFCDgDOBzjpxgfgevP16kUQqyV25SW7T0T306Ps2l+A3TV9IpvdLVatbJ6Ky02S2XXV8FLcXKf8uYYEkZ8/Bz1IPyjr6nnOPTBz31G7ifH2FiCcj/SRjhsdNuCBgnpz6A5rsJYRg7yG4BUBDgYJzyTkk+nG3BGSSTWVPDHx8o5ByTg9cA555B754JPFY4iLqWlGcovW6tTbau2nrTkultLefRm1JR2cU+3xK2ifdWTvb1tojPg1a4JG+0x7tcAgHjGTgc9CSD/ACOdNbqWQAiFMgDAMm4845GV4PGP8SayyqqxIAPJ5HB/HqPbkZ6561IlwIwCODxx0/PBzjv74684OdCpOn8UnOC1a5aalpq9oJb66+na5OjGWsdHfq21vru+m1u3zTvtNcAc26npjMrEHrgjjpgjsB6g1QmuZoxjyUYn1kYYBGCB1GOOeDnnGaHvCwxnjnnPcnqTnkDAzj8wTzU8wuWbqDwB6Z9O5HQfXp2rpniG4tU4uLt8Ts9nslyrVrfRx3TWxMMM+a87WWlldPdWWjdm3pbTTmv3IDdXkr5+z24xnBLyNjv2X8OvU8+87T3kAUeVbFmOOfMIGeR8x64GB09OvNXIIlJ5AB4xwRxgdhx78AAdyCKZcsjXEUIPzDng/iSR+vTkZwDzUUacrynOrOTdlq0mpOyTulq02907N7X0Ws1BWSikrNtWb0W1/etfTy0Wi6ucC4dAxMK5A+6hYjPY7mHQjqR1GMGsm4WYEgyqoJOcRICCOT1PcEkDtweAK3nChRtPRRjIHTJIOTwQCcZ4OSK527EmSFZdnB+bJY8kgZBxu7hvbG0LzV15dOaSStf35p2W1tbWv0+ZEYX1aV9m7X36bXta/VJeXWjIjgEmaXPIAAVSp7HAXGV6qB0PJ71+oX7O+l2+mfCPwk0UEcc+p211qt7MqKs13Pe6hdvHPcyAB55Rai3hR5CSsEUUSkRxoo/LCe4ZYSxJYpGeSAMkdCewPQHk5OM56n9g/hnYDTPh34HscbWt/CmgJIOmJG0y2lkB9/MkbPqc16+SpSq1J7uNLlu221zzi9f/AADrr+NuTFNKMYpW95NPa6Sl09X99zuKKKK+jOEKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooA+VP2nbQG38H6gq8x3Wr2MjAdp4LS5jBwOebaQgHHU9TXx8VC3O/G0shU+4U5GCOvzYyeOMYwBz91/tI2gn8B2l2BltO8RabKTjO2O5hvLJj9C08fp0+lfDLjLKRjOcZ55J6gHPOO3Hb0r53MoWxM/78IN/wDgPJ/7b/Wp34d3pryclbpa93vpq2lb1e7RGzcjkZbk44z2zxycepGDnIB7SRNzyOD364zzjoSccdsexxzBcfKCxHQYA5GeCeAOvGR1685PGebtfE+nPeTWJnjE8LbXTcAw3HIyOOuOh4649K8lUU2tUlJpK7tffRK93pdu3az+FnXG8vhT0i27dElFXdtVukr72SWiSPRISQMk56ANjdjvg++T04/A0k0vDcjqAOMd+OcYznkHP1rNhvUdchgcDK9Op5znpgdCOfc4qOW6BUc855xz9SByByMHuBn2y5Umrq3S97Ky1a3urtJ37LpqtUpLrbf0629Olul3vdaENzLjOPoSDgcnr14yO+CRjkZPOTNISRnA4OAOB1zzx07c9cnPvLNLk8kY9Bk8+nYk4x68nqazTJnnIwc56/j3ycAYyBnHT1rmlBq9tdGn30tpZX9Xa109rouLT0ut0ul1dN2021vbsm0ncjkckHgkcepJBwTnjJC+o6Z4OQKrs2Pr6H0xnPHPbGeOck1YcjnnsQQB06dMjjPTJyM8nnk1iASD0x+a8cdDgDjnkdOMHNJRa0tffS3fS7XRq3lpfR3d7lorLpbRbXb69N935XTukyEscHkdATnGc8joD1wc5PUnHvU8ZPyg9Se+OW9c9l9eSCxOMZqEgAcHOWOfUdwcdz2GM59BjFSI2AuBz37kdM9uTg5z2x7VaT1Tur3VtNWlddenfrfddVe6te+i6bvqtPdTS1W+2u9zYtz36EjOMHJPJ5IJx0GeOox3xWDC8r69dyM+YUjhijQDASQFjIxfjdvyoGMbApHOcjVikODjnjj6Zweeg6ZyO5/76q2sZWSZyDl5NxYcDsDnOCeh/njsLjFz5W7pQqKpu1e0ZJJ6rmV5LRq2i1TSanmScrJO8eROy350+a7SS0u9ne9urNKWUbcZxxgDt0459+vPOOD0NYN1KDwT2JGAScY2/Q45+mAcYxWlMxKnAAHPOAevPXByORkAkjnOd1Y0/qV4GSMcH/aPbdkHp/PNZ1JNyuu+2r7ru1e+trq6V2+oo6LVWTttot27t23fR2utNrpvGukabyIIwGe5uIbVQM5JnlWLAz3bPHHXoa/bfTrVbGwsrJcBbS0trZQOAFt4I4QB7YQYr8bvCOmNrPjPwfpSLvN/4r0C2CdQI31O2aQn2SFZCSf4VYnvX7ODp+JP5kkV9DkUX7OvP7LdOMd/s88n9/OtPLXocOMavTStpz3XVapK/XZX113Fooor3jiCiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKAOY8ZeGrTxf4a1fw/eFki1C1ZY5UAL291Cyz2dwgOAWguYopCpIEiBo2IDkj8sZbuSBW+0WrloS4cxOj/NESHwjFG+UghVOc4wa/XQ+3qP5jP6V+VHiayNj4h8R6eQQLPXdZtcYxt8rUblFHJ6FApBxkDAyOK8bNoa0JptP34Nq2qfK4p8ydkrytaz977uvCte+mrpWfXrdPZq11Zt62tsYcOoWd5arNGLjy5kJVvIbgHIA+XIGDnI9QOT3+cpdG0y3+IWqzjVriG41BbS4a0mgu1hWK186PMDG38pGcy4lVZiX2xHaCMn6I8KxbNM8iRizW93fxAEAEJ9rkZB6korhQTyQATgk1sy6dau/mNEhf8AvbQTxz1wR26ZA4x2zXz06Ht44eVT2SlRrRxEHOnKfJPknTlyuFanaSjUmlN8yScrxbdj1aVZYSdaMFNxqwlRdpJXXPCUbuUJJq9OLa0va991LibS9s4IQP7QhbaNvzSEEjJJOSAMY6g8joe1D6xYjP8Ap9r17zoDyM9Mjpn0HXPBAFdLcWdsAf3KnJPVFOQeDkEAk9DnpjbwQOMKfTbF2bdbwkHJP7tDntg8ZwTnA4weT6V0VKrbV5QW9k4yv0X87tra6eyv20wXvNt8y6vRfJvVX0urXVtNDFn1qxCk/b7Trz/pMWAOcA5f0wSOO2OCKy/+EjsDKI/7Qstx7fa7cZPGOsm4Y4BAzg54PStW48PaVPkSWVuwOMjyk4Hv8oHbr065yKwpfh54dmnjuZNKsneNtysYEyCOMjCjpxgnv29JUr/8+m1vzKSt5Kz3669erRcVDXmc0m73tF68vutpONvRaNa9zpoLu1kUEXNsc8k+fGOnTGG7e2M5HOKkM1mBzdWvTn9/HnqepDH0wQOmASCDxHb+H9MgjCmyt1QY/wCWSAdPp0I4Axk5B9qjkttGVtgt7YsDghY489M88EA5xyeARxg9cJU6km+VU3br73q9+nV7369GhON7Xb3tpe6Xezv9q12tW76atq91ZLz9stc/3TMg4BOP4u359Bk5Oa/9paemd19bAHsZkPI9Ofyzntx6OOnWchAW1gwcciNRgc9OCCB1PftnqKQaXbtyLeIEEYxGnbnpgDp79+2RTVKpf3nSXZWm979OaPW9lpt53FdafHdJq1l9++tl3V1rs73P7V0/Hy3tuR6Biw47HaD6dByAMmkbXtJhG6S8jCjjPlzMOAePlTBPfpkk8cc1aTTYTjESDBzwq4zwAO3HTgkdueoqO80NJI2Gzsf5cg9vcYx7Y7aqnO1oyhezsnB2vfT/AJetO2+3S+tgj7NtOTmt7u6W2yu4X3el/PWy0kt9W06+iMtrJLcxg7QYoXK7u4+baA3qfl7nHWs+9uxn5LWdhjPzmONeM5OCzEAY9OD69K43wzdTaH4uu/Dc6ubPVbObUNPkYHalzasEuoDwdrNFIsy4AUlHAPSuy1iaO3ZIyVDSZVUJGTgckA88AYJByABg8CuTDxniHNN8lSnVqUasVFe7OLTVnO9lOnKFWD1bjON2ndLorwVGSWsozgqtOTe8ZXupRTWsZRlBr+ZSVrnvv7KOgW/iL4l3Wp6jACvhHRn1WxRWLKdVvrj+zLaaYOuCLe1kvXhVcYn8uXJ8sLX6ZdK+E/2MLANL8QtUZV3AeG9ORhjc3GrXkgJHoHgOOvIyK+7K+xy2kqWEpq93KU5SlZJt87ir2SWkYpLRaI8PEy5qstLJKKSTdrcqel9Vve3fq9wooorvMAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigBD0OOuDivzS+KlqbL4l+NYCu0Prct2Mf3L+3t77cFPB3G4YkeoOBzmv0ur88/2gLb7L8VNUkChVv9N0S8GAcnFn9kcjoOWszkn06c15maK+HhJfZqrTveM1b77f59H04Z2qNd4u2nW6t5/8OeMRzQaWUV2wby7kZARgGSRd5UE8DdsJ4xk7h3rXacEE+o4wcdQOOBnB6gcADn2rgPGaMbTS50Lb7PWbGfKkgZ3NEQwB+ZSsuCDkHocBRXRwTs0CBiclR079CTyOf5cYxjBrwtXG7StZW13vfyurNdOjvZNM9Bp2jK+rk023a3I97a30s7rXr2anuJDzzt6nvnOOCcnPJ5z16n1rMkbccY/hGc/eHU8nrnjGOODxzipJHZsgnrwBx+o7HsMdAACcVGF3OoIyPUZ4BHbPTjt0xz1HHJO7e2/XdavzvrfR+WlnuNbN2XTRu99N7J9N9tLvtoscRc5I46gepHf3/Akce2DejgB69SOePzweOO2TjrwetTW8G7nBwOgAxgflnt79eozSaiktvbPJCMOoypHT68DgHHqeOowedKdLmV3eySenZ6tdtVZtdm1fsua8kk1a/bVeXyu7a9NO6y/EtvcRaDqc1mCLqKyuJLcFgAZljYxjceB8wAOT8vJyM5HlXgfRdWmiNxqbyvMzEyb2LBZBjeARkFS+fuk8dDX0NZ2f9oaUi3KBhcQBZFYfKwdcMvOfvcg56jg8dYLfSYLGMRxIqIgCqAMAYAwABhQMD6Ee2TWn1dKpCtKc+WEJJU7+63NxfNKLSTlG1otvRNq1rGsa/s6VSjypynJXlZ3VlayfnzbPRaanMpYiILkA4z14wTnnjpzgk8n1BBzUXlKjAYHcDrnAIPbHY8Z49OpxvXYCZ4GAe3r3PboT2I+vSsGaQBhgjk5PBJ4yMEe/IwM5HPHSoqTu3q+r2d3ZXVkmtd9tVptonCi3vvfXbba7Wtu6u7v11JowFyMYB9eeOeepwMgD+gxU7eWAeAc5Pfg+mPXtnPX8jk/aCucHI5yB2z6HnHB9T0680x7zAJyMAc45J7E9OB/9b1NKNTlabf8ATs9enRO73dxOO+jWyTSe3ze9tt0tnqc1rmnoNU0vVI+JrGZiG7mOZDHKhzg8jBI4GQMCuS12We48YaeyyH7JDo90xjxhTNJdRBHLdyI1ZdoAADE9cV2moXJkRsZPp0PTpxj1zz1x09uQmHmXwuGHIiEQbHJBO7AyDgE8+gP1GOmHJ700leSUptaKUkoKLbSWvLFR11tGKaaQ+eTUU7tRhOEW2m0p8z0VtEpSb0tq3tpf9If2ObHy/AvifUiAPt3i2SBTjqmn6RpqAE8Z2yXMvTgZxX17Xzd+ylZG1+D2lXBUj+09Z8RX+SMbh/aclkh9/ksVGfbHavpGvpsIrYah504y/wDAlzfPffrueRWd6s9via02008u3YKKKK6DMKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAK+GP2n7YQ+N/D94AFF54b8ljj7z2WpXefrtS6THII7c4r7nr49/attAB4I1BRz5muWLkDn5k067jHIOcmKU447+nHFmKvhKrvZxcJdP54p77aN6m2Ht7WKfVNfg3r933nxl4lUNpFxKvJg2XGOf+WLhjgY4GM57/wDAamsJhcWsTg53IuDxwCPQdjnnGccn0p2rgzaVexKPma0mAyB18piPXPPbBz7dKyPCk4uNJtZM5byEBIwcEDBBGAQRjqec++APnE+aDT7X0XZ6q2/V3d7u2h6WvLda2m3rrpKKdtGmtI6p2trrobxT5hySeeg9emQcZwMd8gZ982Yoh5gO3JyeePwx09MHB7HANSLGCfXGO/qBlSCBnJPPtzjir0UYBBA644PtwDjHYZPpwO2a5bO7va6VunfX5Lzu7Na9B9Pn08+/3Pv3vfQtW0QAGRg/NwAcnjoeODnv78+66g8SQMG2/dxzjnPT+WSR9KsoMLkHnj/6xx14OMk/e9eleY/EDXX0ey8/B2CRFYruJXc6pwFyTknAwCQCeOCa61OFGlUqS0jCMpSe/upNt7dr37d7JBSg61WMI3cpPlWtr3dlaz69Eru992lf2DTJl+wxNwB5YHbgYGMZ69s4PbvmqF9fwoWXeGbkBE+Z+h4CKN7Ec9s9eDjj81/25v2s/iJ+zB4f+EXiTwnqXwntdB8W+N9B8E32keOLPxjq/i7xnruta5oO3w54Os/C09tBoOlaX4Ai8f8AjjxZ45vI/El9oreGdD0jSfBWty6/LJB+Kf7Qv7W/jfR7a38N/tC/Fjx8+q+KB8V9c+KXwu+JHj3Q/h38DPHWjW93feIP2avCHwO0b4fWc3xmtNN8SX0fgew8c6I+hSaxrXgeXx9oPxgsm1q8sbKuyOFqV7NJKM3aN5K9Re9fkV7SacWldwTnKFPmUpaZSklKWy3aVno11tprbe17b7Xb/pC8f/tI/A/4eeMPDvgDx38VvAfhDxn4ukt4/DfhbxF4m03Sdb1dry+XTLNrawupo5Yob/VHTS7C5vPsltqOqldLsJrjUT9mPojXYZWYHIJI29CoGeo6hhk5BwwJwcECv4vYvGfxc8N/B7SNDsPgT+1B4y8NfHSP4KfAz4oao3wo17Q/BPxBTwprV3deDIPC3xJ+Lmh2vxh8B6Tcy63q+k6rqOlfB/XfCPhfwtDo9z4VuNL8T2x1u8/pH/ZJ/a9m+PniT4x/DHxh4X8PeDfix8Cdf0LR/G2k+CvH1v8AE/wLfWvie11GbSNV8L+NItG8O3V19nvtF13w74i0TWtD03WdA8QaPc2l0tzHPBO3NjMBUowVS0raqXNaLTVlfkm1UScm4O8XFOMHzp1VTjdOpGT0d9baNaK+6Wr72WjtLRu0pH3fJMRnDDOScEgEkknjngEd/bHSqrzHIOc8Y6nOR+BwTk44yewxzULtuBI57jggnGeBg+pGTnr1wKpOw9SMA/hzzz+Pbv0OTkeX33Wy/H1+d1dPS19LdKaet3fVrRbvV/c3a6873eyXEu4Nkg9MEDgDv3/i6DPftxxlyMN2QNo7nPJHf27jPTnntVt23Z7t7e2TxxgD6jgDPrjLuXZY5WAOVikOcjqqsfXrxxkgk+gxVxk1t1d9nbe3TfXTrZpL0hpXb6NLXVJbbtO17bJab6vc/YH9n+yNh8Gvh7ARtMnh+G9IxjnUri51AnoM7vtWc985r2KuR8AWP9meBfBunFdpsfCvh+0YYx88Gk2iSZHYlwxI9a66vuqUeSnTh/LCEf8AwGKXn27niTd5SfeTf3thRRRVkhRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABXzH+1RZ+Z4I0S/AO6x8UWyEjtHe6dqELfQF0jzkgZwOSQK+nK8M/aMsGvfhTrkijLafeaLqA9hDqlvC5/793Dg+1c+Li54avFbulNrrqldfivXtqaUnapBvRcyvv6dNfuPzsd/MhdDyCjZB6jK49QMEH04I7iuL8Ev5EN3Zv0tb2eMDOTsWQsoHoNpx36+1dOsg5GcHofqDzx64BIBHPIrE062Nne3jYAE8hkBGepOTgZAGADkAcA/XPyVKV1NN6xWi0Wj3itHdppa23u35+vpytXtz23a1abu720au9U9Vtrc75HyeQM5B6dBkdDnjH+HvV2OUFhkdMcgEA554+nQg56jtzXOJMFxk5YkDPJx24P1xxjj16ircc578jHbnBAHHsfbgcggda5ufXo7dl1b362XbZvVvyEtNLt3XR9W1otL30suuj1Wh0gmCjg5zx0wAOhP55zz27dvDfjjea1ZfDvxrqvhXRIfEfizSPCviLVvC3h64ufsdvr/AIl03Rr690DRJ7vIFrFq+rQ2mnyXIIMEdyZAylQw9Skuyqn8QDyO+RkYz19OOh718Wfty674ntf2Uf2lZvBMl0niyD4C/Fyfw++n7/t8WpxeA9caKaw8omQXkCeZNaGPMi3CRmPkCu+glUcYSScJuMG5X5WpPl97lcWkrtuzTtt3IXNGSlFu8Xfo9tdLXsl1bXqmj+dT4K6R/wAFlP8Ago98OfFHirw5+0ZefBP4Qa+JbGx8W+LrKy8IXHirWdMlEPiPR/gxo/w38GWPj/wB4GsdZi1Pwff+IpPGN9NrdlpssC65r2onULyP0P4fWn7G37AvxY+HfxK/a+/Zt8S/sxftPfDnTr7wb4T8VfCCb4gfFr4Q/tMP48mTRdW8f+G9e26t4m8d+N7MXs9zr2gfEe/tfHvg2C5kvIIfEVnDpUtt++nwr13wd8Jv2QfAGufDvQ7fWfBPgP8AZ+8I6x4T0LSNT0PQ4dT8M+H/AIdaZqWn21rrOuXNj4e0pbrS7f7S+p6ve2umwO815fXMaea5+Ef2gv2lPhP+0Jo/i34D+Of2afFfjwX3wcPx0g8EeINT8PaH42fwLEHPhv4j6VpFrc3Ot+Er631hLefR7zTdes/izoCNHrOn+DjeRf2RL6FHFKbdGFGpSw81yN4d8lRxdot1U/3dS6kvjpxipOSounFyi8qsHzSk2pS5veUrJJpu9l7rSVmnq7r4rySkvR4df+H+gf8ABQDVbR/iN+0jqfjr4p/s5WGraf8ADq903XLj9mTwv4X8I6+BeeJrPVvsMenaL8S9ZmH2S8sby8M8sE0sE4jvdWsrKvyZ/wCCXX7Df7Vdl+2Hcftwaj410Xw3+z58ULn4s+NYNG0zxbqOoa/8StD8deIfFaeFfDfiDwelpDp+k2Oi6lcReLjqN/cztZ3MEB0ITXGqXc0PkfiH9q39szxL4M+M/wCyL8GofjF+0R4R8F+HtOk079o74O+MtMsPjr4JmsdC8PeLtY+Gk/iXV9NtdC+N+oeD11a18L3njbTdJ8JeMPHXhuS9uYLV9e0/V1tv6Lf2FdX8G3/7JP7Oy+BtdsvEfh/TPhB4F0GHVrLzQkuqeH9AstG8SW1xBdQ295Z6lp/iex1nT9W0+/t7bULDU7a6tr63guY5EqsVUnhcNUTVOf1iMKbldTS9nT/iRcIUlBzU1KCqxdVck5ySklNRSSnUTTl7srLdNLWNrNtrXRqOnS7TPrskhcEk5GOD0I4xjHH49TjB7VUkIxj36jBzjOMdM/X8zyBU0jnn+EknGCOnQnHt1x1yOuaoO55HPt6AHI9cc84HYHrmvl5VEtnonqkrWeqttZbKys3pbTQ70rKz1eist07K3R+TWj72syOQ9eg5wQTkD2PAyc5B9OfxgghN5eWdkpy97d2loox95rq6itx655lGBg5yBkgimPISOmR3z0HOCPz9c+xPJrtPhhpiaz8RvAthIGK3Pi3Qgyg4+SLUred8gg9UiYtn+Hr0zWlBe1q06aSvKajeztZyS6XWmi1ttfa6FN8sZNp+6pWvo7q97pO17e7tpJN9GftRBClvDFBGMJDHHCg9FiQRqPwVQKloHt7n8+aK/QTwQooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAK86+Ldk1/8NPGtuoyf+EfvrhQMZ3WSC8XGe4Nvx79jXotY/iK0+36Brdjjd9t0jU7Qg9/tFlPFjj1Lgf8A16mceaMovVSi4273TQ07NPs0/wAT8fHPJ9MngZ7ngn2xg8DrkH0qPA3BiMHPXn04J2nJJ/nn3w5gQ21s7hgHIwQ4UAjjPO4c8Z7dRkxE9/wzkDpxgg9evQZwBkD0+Bk3GcktNbXXVJ6q+iSurdN15t+6kuVNpvRO19L23d9dtLbK+2hZSTA4JyODkcc859PbkdMDBGcWRN0JHXIyMYDcDqc9v8OccZ6tjPJGTkflwOe3Xg8jqR3MitnjIJB9OR3/AIhzwegGAAfpWN9rbrr3bdnpa/nvqul9ClbVebd311eml10tZ30snZXvNdSFkby85APGCc8Hjr+XIzxzxXlOo2c+oX0i3kIk09Y5Y50uIkliuEkBRoJIZFaOZJlYxSQSKySIzRupR2B6bxz448NfDvwj4l8c+MtZsPDvhTwhoWq+JfEuu6tMLbTdF0LRLObUNV1O/nIbyrSysreaeUqjyFU2RRyzOkTfjf8AFf8Abj/ap+Mfwq+LDfs7/sI/HOTw9rfw18YD4c/Erxd4k8JeBfEOqy6poyWWheKtN+FupNH4naO4g1yw8T6Boo1qHxdqelL9rs9KW+tL7TLT08LCrW5Y2sueKcpSjGN29NZNJ9fdV5PW19UYTqeyUpWu3F7tX2euys9m1trqldW+FNH/AOCqPwC/Zj+NHxL/AGH7DTvEfxt/ZVtNS1/wR4Q1rTJNF+2fDv8At99SsfGPwW0iXWNb0qz+I3wp8M3l5qGheCteXU9D13RreWbwfaP4k0zRdH1V7fxO/wCCgXw/8O+JPBHgDwd8UPHGuC+sNP8AAnjyw1v9nrUvB/7SHhz9n5orq5j0jQ/iDrGp2fhbXdYfVP7Ohs9abwtb6jLZ/wBp+LJ9ag1W1HiFf59PEP7IvjOz+AR+P8Xwv+Pdn4Is9OIu/GWraH4E8T+A59U0u/bQtbt9cufDviCz8YeA4LfWoLzTp5PFPhu/msr2P7Fq4truTcP190X/AIJm/BOPw18Nn1DS4dMk+LWgeGr3wrocvjfw1HfeLpde0ez1qzsbGxu/H1tfa3brLskhS9sYYIL63tAsY1ZbOM/RVMNhqTjN1HefvSlyxcfaJr2knzR0lrGU4Q91zSc02uU4HVqNWaV9rb33stbrVKS5rJtNtczdy1+yH/wVg+CnwQ+KXxu+G9r8KfE1r8GPGPj/AFrxr8NLvSr/AOH914n8ITavFbXOv+D9TuLjxPpmg6t4UfxBHf634Tlt/GF/c6BPqep2s0uoxyvfxfpV/wAEf/Evifx54x/bX+IlldW6fCTx78a7Dxd4Y8P6RqcGseFPC3j7xFba1qvjvQvDes2JfRtZvLLQ7jwLL4+1bw283h278dX2oxabeamlmdTvP51/gT+wX8SfjN+0N8Xbf4Y/AjVviZ8Gfg3428VeEvFekP8AEi3+Glpq11o0d3ZxeD7H4g3cPiKS48R399Zi8uLDRINTKWMkUdzqOj2t3a6lX9cn7CfxG8HWHhhP2dYvgDqn7K3jj4X+HLDWj8FdXksNRtbjwbrOqXun2vj/AMI+KdPdovGmiavr1peW+t6tqIt/FdjrskSeKrKG41GwnuuLNlSp0aqp++6jpymuaMuSSatKUU3OLqSbg3KKTU1yzvJRnrhnJzu430X+Jpa9Xrbli3az0vJWsz9CZOy8DAIBycjB65J6+hxnr9KpuT1zk8nJBPGD06DkfgeeTnAuOwP0HPU5JI9s7umcEDBqo2Ofc56jj69fXrnH45x8fJ6vR3dm77Xbb7vWzemtkrNtu69NK666pWTvo3om9b676rRNbuydGTk7exPy9TjPUdPYds9u+K9q/Zysft/xk8Ew7Cfst7eX574FjpN/cbs9NqyKvpg4HevHHHGTkHBJPoeR1zwACMdc+x6fSn7I1i138WVutpI0zw9rl1kdjMLSwU/XF2yj1z7V6OVLmxmHW654v7pKT66Oye6Widr9ccS1GnUem0ltbppu76ve+r9dF+pA4AHoBS0UV96eGFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABSNgggjIPBB6EHg5/OloPAJ9KAPx01+1Nhr2t2LDabPV9StSuCCBb3s8AHQc4QADGcdPbJbcRn+fGPcY4znAyM8/jXoHxZsxYfEzxvbKu1f+Ehv51GMfLdy/bF7dxOp4GMe3NefN36ZxznrjnOPf8AlnnrXwWLXJia0NrVZpXaulfppok7deltOnt05J0obLmUW/ue99k13vv0IzKowuQCASATg446884J9cYI9gJBKvYgnAz14GTwRzyQRyO2BxkV+Xf7cvx1+OXwp+OX7MHw9+DOueEtI1H9o3TPi78KtIu/iPdW0Hw68J/EGzuvhrrvh/4ka7p6/Z9Y8X6x4X8MP4xtPC3w80nUtPbxvrup2Oj3dxb2clzeW/M+F/HP7XXij4VeJv2lfDfxf0TXI/CY8bnSP2ddQ+GfhTTtG8V+HPhF4h1/wx4mtfE/juxuX8a6H8YvHMfg/WtdsptGubbwH4I8Rappfg1/COs6PY3usXGsMDOcIVOeCjUsoJyd25uUV0ajzuFRJzcYJ05c84qzcuor6trWzbUmuu++2re921oztP8Agq/8S/hv4V/ZA+KPhnxn8QPA3hvV/EGleHdZ0zwb4n8Y+HvD2ufEfQfBnxD8HeKPGPhTw3pGraha6h4huNb8OaPqmimz021uRdXN5FpjFZrxI3+3vA/jPwX8QPAfh/xp4O1bTNb8I+LNCsPEHhnVtNmhuLHUdE1aBLzTLqwlhZo5I3gnRRHFzDOr27Ik0LIvyR+yx8QvC/7W6/FPx3478HfDvxXe/Dz41eMfA3ww1y98BaBeeIdK+FWp+HPAPjzwTbyahqtvq99BqmqaT4rsr/W5dNurG11K9W3keyMtqkjc9N+xJ8DNU1nVoPgv8fvjf8DfD/jb+0vFWvfDL9nX482Xhj4f69DqWpzWWv8AiTw/4QfTPFA8F22ray11aavrfwvn8KadNrrXSKbfWjOR0Wpxpxouo4Tp1Jzd03GXNyxaTjzSVlTUl7j9oppS5FFc2b680dNOibV1pzJ8vR/zO3K0tXp+aN/+1B8K/hP4t/4KIfBLUPBXiD4k+EvHv7TPibSvCPhfQfhx8Q/GPg7XdR+IHwt8Lp8ZfC66p4H8M67azXkfxCa8s9e0SwuV13SdR8SN4iTTb22sb2J/lX4IfF3VfAfw30rW/jP420C+1j4a6b4F0S8+BHxF0Sy07xR4ZufgR4o1qPwH4P8AFnieK18QeIrTX/CWkfYdS/szSfD/AIXTx74+lEGuiXSPs2p3/wDUt8F/gd8Lf2e/h5o3ww+FHh228J+DdBS6a2020vL27uLu9v7l7zVda1rVL+5udV8QeINa1CWfUNb13WLu91PVr6aSe6uHJVFiXwr8EPG2vP4jj0H4XeLvE3h+8S1fxBHpHgnxN4g0K/tQGitpNZjttR1XR9QtvL3QW8l3bXlr5YMSxeWCurzGirwjCs05J805xbmlo7QUYuk6llOclOo4zjG0m43IVJ7tJLvZaWWjb95Oyb91tX17H5+f8EkIdN079kDRrHVbN9I+Itp8S/jJL8Z9F1NEg1/Q/ivq3xF13WPEeleJoGZpbbWI9NvtClSOdmMmmNp81u0tq8LnmP2h/wBqL4HfCH9vf4QXPjPxhH4cT4efAb4v2/j7UbHw94r8Siy/4Wfrnw+HgDwrrUfg7QNfn0y61CXwnrnjK0h1dLJE07To76LIv4Gl+m/iB+x38Dvij8QvEfxE8KePPih8KPiJqEWm6R8RvEH7PHxk1X4baj4qSytNmj23xH0zRH1TRdW1ey0wi30vWNV0a28U2+lBLaDVTZQ26xdf8BPCH7M3wdm8TfBn4M6z4WHiyx1K68RfEbSYvHn/AAmfxV1jxDcR2Sah4q+J+qarrWreOtf1+WG50yG71bxRPLLZWtzpllAun2MtjathKrRnVq1purP2rm/Zxag06t+dOclUj7jk1C0Zc7tJqk7QeijKKSiuVpWeitypbOzWj0+yrbXla5gfDr9v39jz4reI9J8G+B/2i/hXrHjDXbuDTtG8JT+I10DxVquoXBC22n6b4d8T2+iatfahOzBIbK0tJbqaT93BC7jbX2BnIBB5I69cdeBkcjA5Hp1xXyx8aPjd+z98FdX0O68dx2eoeOtSl0pfCHh3w74Kbxz8UNZm13xPovg3TD4X0TSdNvvEMoufEPiDS7BbqK4sbWMPdXcl2lppuozWv1OgbGDgMrENtYMu5SVIVlOHAKkKy5DDkHGCfJxKgpRlCFSEJXV6jTV0/etNQhGXKpxb5Ve71Wp105aK+jSe38ult1Zre2tr36kUmSO4xnPUjBBJPUccdgCDn3z9jfsV2RfxX4x1EqSLbw9ZWYJyQpvtUEuA3TJWxOPb15J+OpQAhzz9PzyAMnt0/PJr72/YmswNK8fakU5m1DQrCN+eRbWl9cyAEkkjN3Ge3NejkcE8bS/uqpJ9/glb1s2r21116358ZpRqPvJdd7yWujV77u60aau+v3NRRRX254wUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFAH5k/tF2Ys/i3r7KMLeW2j3w46mbTLeFzgHLfPBIDx147ZPirKCvoeg9Bzgg4BI45zjBGRX0t+1ZZC2+IWj3gBxfeGLUk4JBe11C/t2B4wW2PEOvAx64PzWQSADngcd+MZ7AY5OSex9cE18LmqcMdX03qc3RK0lz+Vk77+btc9nCu9GFtbRV9fNw6O6dtO/RJJ3Pm74+fsvfCf8AaQbwsvxS0i81q38IWnj2y0uzttUn023MfxD0Cy0DV7qd7VEvI9W0j+y9J1/whrGm3unar4U8V6Tp2v6Zdi7tUU+K6v8AsPyjRPEHhjwN+0H8Z/h/4a+ImmXWnfF/TNP/AOEI8QXHxEvtZ0yLRvGXjew1TXvDUlz8MPiZ8QbCO4Pjnxh8PY9Msta1XUL/AMUReF7DxbN/bo+9xj14zhTkDAIBH/6jn3yOasBceg65wPcHn0J7rjjqCM1hTxdanGMYyUow1ipxjKK15m4xkpJavVpJp63ukW6abd29V0v2sk+V6pb8tt+7PkX4KfsvR/AjWfivc+BPFCWPh74m/E3wh48t/DD+HYntfCOieGvhj4L+Gd74N0a8XWEnlXVLXwPpup2HiKeMXWhO8ln/AGZqoUXbfLepf8E9PiR4Y8Z+O/HXwD/aIPwL17x543+I/jTVpPD3wy0nWUvF8S6/FrHgTwbfHUtYVv8AhXngdJ/ETXPgrTlsdE1DxP4v8TeP9Ft9B8Y6jHqlp+sgUfiMHn/AencE9QOxpdozkjJ4BGOmce+fTPJ5zn2X12qnLSEublUlKEXGXLfl5ou6la7b5k3ezl72oezjf4bNJrs9WuqdtOVadFp1aPhb4W/s9/tC+D9I+Ks/xB/ap8X/ABa8WeLbDxBpfw9k1bwt4e8LeBvh3b3mnXMXh/U28HeHLdJ9Y8S6dqtxHdajqa63aWNxpNla6Tp2k2139t1i++Wfh/8A8E7vjL8Hz4C1T4V/tA+CvAWveG/BOk+BfFsXhr4G2OleGPGXh/wunn+HNBubWDxQ3iK7t7vxHqGveN/H/jHxNruvfEDxn4gl0XStO1Xwf4Ps9W0TVf2NZB0I9eg5xxkdBjtgDOD1wOarugOccgcEcc8d+DgZ64GRyeelQsdUSmlGlGMvihGlT5brSL5eW0WldxaScZNuNm2V7JttKWrs72s29n3s3reLXL16Jr8nPhZ+zD8d/g18ffB2leH/AIq+JNc+DmvQePPif8Z9QuPCOh2Nx428d2w8LaF4X0/xN4rF7d3eoeJvGLSyaj4ilstItZpfC3glkttQ0yfWdRGqYGnf8Ewks/Evi3xxJ+0T8VNP8ZeN/iHf+NvEmseEba18Ox6rpl14x13x2nhK5gudZ1u+h0+68Saj4du/FD6Fqnh/R/GFl4D8LaLrvha40yO/W6/XV4k+/gbh3AHPPOO/GANo4yAeM1VkQbflGM8kYIwORxn0PYdMc47V/aFWz5fZpSspe5FqTi24tpxsmuZpNWekOsU2Kltdv3euqa16t726a2STV9JHxP8As8fseeFf2e9f8TeMYPHXxE+JHjPxfoXh/wAPeIvF/wASr/w/q/iLVLfw5f67qVne3+sad4e03VrzU5bjxJqsVxJPqb6WumyWOmWWkWcGm2rj662hRjAwPUDoOccDtjj0/DFXJBtB4HHbPAx/D0xz1P1OMmqxJ54AAPAzngdTn0Gcnp1A54NcVWvOtUcptSaSV0ktbWVlHRWVktOXo1ayeyjypro739dE23a9m132Seq1VK4HyHB5OD+JJxnjP06H2AAFfpN+xvYiD4Z6telcNf8Ai/USDjBKWen6XbA+4Enmgf7W6vzZuT8pAHfPUYJ/u5I64HIycdq/Vb9lqw+xfBbwxKRg6jc67qJ/2vO1q8iRvp5dugH+yB2xX0HD0b4qpK3w0ZO+v2pRStpbVP7lre6a4cdpSS2vPzs7Xu035r4UtuV7H0NRRRX2B5IUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFAHxB+17Y7L3wNqe3Ikt9csGYcH91Lp10qnv0lkKj/e9cV8gfwg46jjGepznuOw5yOeBgYr7t/a2sTL4Q8M6gBn7H4mNsW5yq3+mXfseC9ouRg5OPevhJeU+nOSPz45B46dCOnfJ+Lz1cmNk19unTfmrLl00er5Xr6630PWwbvRV+kpLpstV+f6jQOR2z1746DOTjPTt65PfFlcYz2z+mSM9eMduODxgdKr8k4HGe2cdzweeT9eamTGPqMdscZIHPoSRu4PBJ614vMtE+l9L77va33enTc7Le7fz6fqunRX9ejRZXGPUe38+Qew+uPbNPxwfYA9vT1AGQRzjA5x6nEaYPBJOMkn1469hzx69h0wamHXk5HPBBJ74+p6578YxxwpN2e3eyXkm+mtu173td7MLba6bX0srW669X8773btC3UAcc9sg9ycg5/wD1+1QMOM8YIz1Hofywe5GMjpVhhg49D75wD+vbt7Dg5qBwSAOnA55z2JAPOMZ4OBjt0FZNt9XZ6K1nf8e2lnZt2aV9FS+TSba6WfXporO+2jVuzdNgRnpkjr6jPQdR049zgcY4oyY7Hk5POOp4IBzgZHbJ4+nF6TIOO2cEnPTIPp6Zxwf5iqMoA7ZxjtwRyOc8dz0+uOpoTtpvfzf3tNaXvq9vXrTW6731t3dnbd6dfPqraZkgJJyePQnnsD0x6c/15qsVPU9+uTjB5I6fL3xnAz9easS4JyOnOegHUj/aBx+AIA/GHGcE46dP9rPOeO+Oeo6/Wi2raT1a6/Pa91LVprS+t2lqn0snv3ata3dpp9d9d2tjOuWwD0xnJzxgA8nHp1B9Tk8V+w/wO086Z8I/h7aEYP8Awi2mXJH+1fRm/b8SbnJ9zX463/3JFH3vLbAPGW2sABgkjOQMnrx7Gv2+8I2X9m+FfDWnY2/YPD+i2W3+79l021hI7dChr6vhyN5YmdtowhfTW8nLTq07LfVfceXmL/hrvzPborbPa2vdu99ErHQ0UUV9SeYFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQB438fNCttd+Fnin7QJDJo1mfENk0ZGUu9HzOMg8Mktu1xBIDj5JSwKsoI/L6K6tWynnBX/uy/u2wcjI3gZ9AQT6Ada/Xfx/bC88C+MrQjP2jwtr8YGM5ZtKutoxg/xAf/rr8hIkSWNd6KwdVLbgDyR1ycjGcMMY4yOcGvlOIoxVTDz0TlCUb21fK791sm1eztfZ2PTy96TTvZSjsr732V1Z6bp3LpUnkDPPYZGBjpxz1GR04P4KpHAAPHPI7c4xnAyfy6jOc1nNYwggoJIjnBMUkkft91GC8fTgfU0C1nA+S9u15wMyJIO/GHjcnjBHPJ6/dxXy7k0/hW19J30e2jUU9u/3ano+7o9lsk111s9G9O6urtO+zNxM55zzxgHHPpnrg/XjIx05lz0IAPHJyPfHXGPwA78Z64iwagPuai2MYw9vbnBOeOFTOe/fqPapfL1UDAvLdh6PaL06HJWYcHjt6nHIoblr7kt9v3b0tqvj19b7+Q7JO90raW961l1+Ha+t+r81rpHHrg/h167fc4z6kAgHFROOfx6gcHoCccY6/n6d8949YGQt1aE44zZuOOeCRMT+OMnGOlQNHq/O67tOvQWh+nUzZ54xwcgDPBqJN9Kc730d6feO/wC83T89Om1x2VrXhorttTfSyv7jtp003u7FuQD5s9uhByeAf6frnGMVRmAycDp04J789R19eCM9cdq7xaqQc30atyBts41Pcc7mOCPp3PHOaz5Le8Od2oTYH/PNIE7cDIjyPT19MkA0OTbvytWXV07O1rv4201bd3vbW61btbqt9LXulfu42189vPREsgbJwoJIPQc984xnknnjIyTk9arSyQwqTLJHEMZzI6r9RgnP+cYAqq1mzf6y4upOnDzsoAPHRNg5z0xnnqSBUS2dtExKxrkjlmG5ucDJZ9xz0I5z9SSKS5ubaNnpvp1TVkl0s73etl1VqaWm+z95LS7W2rdtr7eXkdL4C02z8X/EHwZ4bkeU2us+I9LsrqVIiV+yi5We5CF/L3loIXjyMgeZuPAwf2yUAKoAAAAAAGAB2AHoBgD6V+PnwEthcfGv4fIACI9aubjg/wDPrpOpT9OejRg54PGfWv2EXoPoP5V9vw7G2EqzduaVazaVtIwi0ra7OUu+t9bWPGzB3qwSbaUHv/id+i7ena2wtFFFfQHnhRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAZetxJPo+qwuQEm02/ifIJG2S0mRuACTwx4AJPbnivxfs5/wB2uDuUIiAhs7gqjBx7gZxnuTgEV+2Z5/T8s8/pX4l+MI5tN8deNrGx8j7PZeMPE1tHalQkcMcOt3qpFEYgDGiLhFj2FYwMKBgAfN8RRbp4aerSlUi0lfVqLX/pO1n5baehgHrUjp9l6+V1+F72bSfXQ0vNGcZBx6j1wOc9cduvbp3erA9cEeozwPU9Ae59vcCuYGqSRkfaLO6XGctCFuExjHOCJMdcDYB1IBNWYtd00kB5xEOh86KaM9R13Rlexwc4zjOOa+Nc1e11bXWTUXp15ZNO6bei0to9Fc9dJq2kvVK+qu7XV/Vat7u7bsdShXGD09c9iBk59Mc55/EirAYDpg4OCcdM9ffI9sgep4AwodX0xwdt9aMOx+0RAcHBU5YHKg8Z5APGetW1vrVgCt1bt6ETRkcAjoG7Dkn6c0OVtne1tN07N66O+62v5bIXq2u7ty+V7W87a22uloaRwfU9h69+fUk4AJx7ZyKquRjgjk5z9euR+o7cZOcZEJvrYAZnh6jJ82PGc5x97njrioJL62xlp4QCecyx46g8Hfx0x2JBA68CXK79G07tvRX6vr1a006IenXV91Za2v1t0dlr892klPPY/wCByeePQ8k59R6HNnJJPDenoMDjIU8A8duPXHSlm1PT487ru1Xsc3EQwD3xvzkDjv8ATAwce413Sx/y+255AISTzGJHdfL3nknJGOR9cmVJNWU4rdptpfLVrbe6VtEpO5Su7JJu2z1dnfS1u/nfz3sTO2Dn1/AgfoCTgnrnvjGBVV24JzjCkgEDnrgY4J79scgn3zJNdtTuEK3ExBBAitpcHJPRpPLUYJyTnv161k3WqXsyN5NssCKCC9xIGZevSOLPJ5xufnuCSKFLVPVtX2vLvq3G+y0u7Xt/iuJW6W19NNdOi1+X4n0l+y3ZPqXxy8PSLuZNG0zxHq02BlQg0x9NjY9doNxqUWOxOAD2r9aa/LX9hNpZ/iT47mmL3DxeDLKPz/Kwlv52vQt5QYAiJroRBwkj+ZMtsSAwhcr+pVfoGQ0+TLoPVc9SpOzVmrNU7f8Akl/K9uh4WPlfEO32YQV16cz+5yt8gooor2jjCiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAKKKKACiiigAooooAK8Q8efs9/DPx/fXGsajpM2la7dc3Ot+H7o6ZeXTgYWW9gCTadfyjgGe6spLh1AVpiAu32+ioqU6dWLhVhGcX9mSTV+jV9mujWq6MqMpQfNFuLXVHwprH7HV7Dubw145inDE7LbxDpLRso5Chr/TJnVjg8t/ZyjvtzzXmOp/sxfFfTzL5Wj6LraLkh9K1m1VnAPUQaounSbiP4QDycAngV+nNFeXVyTL6l7U502+sKj/KfOvw/U6IYyvD7Sdtbta9tWrPbRPddD8lrr4LePLPd9t+HHiBtp+YwaT9vQdcsH083SsB1GDj1GTiuXufhzqUBZbnwNr8LfNkSeGtXTucnJsguD0BViOB1ByP2RwB0AFJge/5n/GuKXDWFe1SS/wAVOEtPk47dzVZhVXTte0pK9vv3Wj+/e9/xcn8CICP+KV1blc4bQ9TUr0GCBZqMg9wMHHQbsCoPArFm2eEdZlJclVTQdVkxwMqMWZ9CeBgZIAOMH9rsD3/M/wCNGB7/AJn/ABrL/VfDXb9pDV6/7NHW9771NbrR3vfrfpf9pVf5W/WbfW6W23lb9b/i/H8MfEtyV/s34deJp2JONvhPWQrZGAdzWKqGH1PHfOK6C0+B/wAVb7atn8M9egY4wby2tNNUEjOC2oXFrhQSVyR2BwOg/YDGPX8yf5mjA9B+VbQ4awkUlKrN209yEIafdIl5hV6RXleTfr2v1131Pyu0v9k34x6q6reWXhzw7A33n1TW47mUKTniDRYNRJI5+QyISQBvABz7L4a/Yg0FWjn8beMNS1XgGTTfDlrFodmzLztlv7ptR1GZSeC0K2MmD8pU8j7torso5Jl9J3dKVVrb2s3Jf+AxUIP/ALeizGWMry0UlBf3FbpbdtteqfmcX4G+Hng34b6SdF8F6DZaHYySCa6+ziSW7v7gLt+06jf3LzXt/cBcqst1PIY0PlxCOPCV2lFFetGMYRUYxUYxVlGKSil2SVkl5I5m222223u27t+rYUUUUxBRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQAUUUUAFFFFABRRRQB/9k=</t>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAwEBAQAAAAAAAAAAAAgJBgcCBAUBAwr/xAA2EAACAgIBAwMDAgUCBQUAAAABAgMEBREGABIhBxMxIkFRCBQVIzJhgXGRJEJFUmJygqHh8P/EAB4BAQABBAMBAQAAAAAAAAAAAAAGBAUHCAEDCQIK/8QAPBEAAgIBBAECBQMCBAQEBwAAAQIDEQQABRIhMQZBBxMiUWEUcYEjMghCofAJFVKRFjPR8UNicoKxweH/2gAMAwEAAhEDEQA/AP7+OmmnTTTppp0006aadPeverr3rxf7X1poSB8kD/Xx1xY9zXdd9WfsL8/xp+Pc+B99OudNcWdFBLMqgeSWYAAfkkka/wA9fLMqglmVQBZLEAAfck1Q1yASaAJJ8Adk/wAa4xzRTDuiljlUEgmN1cAj5BKkgEfcHr4jnhmUvDLFMoNFopFkUH8lCQNGBUgMCpPgMCCf2Bq9fp12WD4IP864065006aadNNOmmnTTTppp0018J0Cfjx1wTQ/PsPcn7af7/j38a1fgvV3hfIuWZbh2MybTZPEO8TWWgEeKyFmDzdqYu88vbenx+tXPajEKsH9maf23CwXY/iH6b9Q75uuwbZnNNmbTM0E0zwGHDyJojWTFt2Q7EZzYjWmS8QMcbKRz6arpk7NuGJiQZs0IEWSFaNFJMqK1/LaVPKCXplDANxKkrTA60d6geqvIsvfs0OO27OLxMPvRRzUCqXboRghsTWirGBJPqaCtGI2C9rSS92wcVeuviDvmTkz7d6flfBx45ZImy4pESecxji0vOpPlIzDhGoUtQDNxJNT30/6a22CCPM3WJMqaRFcQODwhDdhaFl2HQfl7+DVXHTPep3qxwZRl8JyXPW468we3Qy1k5mrNAzqpBgtLJIsUQ+t/akjZl7iXA+IHtfr/wBZ7DNjLk7llZ0JJilXJdMyy5qN2DpfEeGIUEntqBrV7zvTuwbkrmHHhxJKs/IV4hRocR1xHE98h7X971Mn0S9esL6qcayFu89XEci47XabkWOEjezFURGYZmoJQJP4bL7cgk7jJ+0mQxPIVaJm2R9Ieutt9UYE85kjx83Bi+bn4xbuOIBj+pQMFYwniQzURG1KxBYDWMd62HK2jKWGjNFM3HHlA6kYkAREgkB7IoeXBLKDRqOfqJ6mZ31JsWo6T2KvFoppIqNKKVq6WkiJUW8iUKmeaRR3GJ39muNIil1Mhwb6+9Y5PqdpMXHnlx9pSUmGKFpUknVAQs+QIir8WslQzIvEEHmDx1kX03sWNs4EmXCmRmMo5OQG+WSvJQikEClZlPm+7A9tDNk+RcWsvPx3kuQ4/IGSZUwV+7V1Ko7ZpL0aTSYy0ZG0sKzU5XiRS0vf3AdYf23dt+9NZpn2vfsuDAEhcY2BHJBG5Qj5kRR3eOUyFuXzaSmXiB2xMtz9t27d8ZRPhwPKwPGR1RXjTtRXEKQTR6qx0TXQ1LL0T/VDTzGTXgvqNlKNbOvLHBgeSPGKFLOmRuyOnkFJ/bUsq7FBBKpjp3mcxD2rQSOfZ74d/FnC9Rgbdu8sWJugIjhkkIjTJ4g8YmZgFMxHZ4k8mJsg1eIt+9KT7cGyMUNNjBiGRSGePq+QocihN9AHiB9u9TWBB+Os3WDdEGquiDVixdfgg6hmvvXOmnTTTppp0006aadNNai9YecUuKcRy8MWRigz16o1LHVldWso9we01t4k75IoIYDK5sGNu0gCNXkKKYZ663tNm9O7jMkyRZUmPJDAxbuNpAFaUhLkUIrdOFJViCARZFy2vCly8uACItCHt2NBCFpqPIgEMRxI9/H4MBvT/DTV8/Xt0ck1d6TSWGeD2xJ2yxSxojTNPIVkIcoNxbZRIxKMSOtPNi2yDb91x922f1GoysdJ0OHjJGpEeVGyZErEyl2kLnmD8pTIRzkPK9ZNFmOWLJxgcZlU9t1ziIaNOJA+kUtjktCgBXQ3DZjrV0lRLFKtHHExInswxSPoLoRKWLSud/0J3EedA9pIk4xoo4MiQ5WJjpCnJ2yslUkkbyKU2zySE2qqDbEiyBZ7f1LSOCschZ2HL5SgohJog9il+/0+PbWsstPBZLLLJFEpBRZJHIVQSSN6+rX37e0lSd+BvUWkzcRnJlniUWVEkkgRaBNX9QYdd0VDC+wNV/B16H1ECjx7v2vurBPjr961GLl165w/LHK4LJyYqrkILmLzFinMtQJj8hF7FuIdwjElW5B3rNAxMaypHIvYSB1jj1H6wm9PzwZOFuuPg4+WZcDPzG3CDF+XhZKhZ46eQO/zgCpRoySQOFE3qSbPgQ59QZWOciTH4z46PGZVMsR5KYwPq+YhAcAgfSD2arW2eHcv4Ll6wr2c1MMfHGgFarKOyZFUgIjTmODuPahMsjlWBLMfd7T1K9j9fegd0PAbpHN8qCKNhjFwh4qEEYkbjG/A1dSMbIHdgap9xwN2xiJDjqjhm+uWuRViQvJaJ4AGk+kV5IFa6vKczx8m4cA7mlWrmWrStdkskjLEyN70cbzbSSUowaKT6FJYlV03XfvO87GYpVwclceCOMvjpIEJkajzLgMwYE0VPzBdd0QAaTHXJPyxOtu8v1lAfoVu6QUAGFHoirJJJ1rq9h8fk8TA9mKJ71uvDOrxrNE1Kfu91lh9sEkQHvj/AJz+3PHMvaS8QJpMLI20xQlJYpsmWKOWOSJ0i4SH6uMapZQxkkkhu2PuLIpNwebm6mNljQsAtf3AErbcuv7QC1GrY/tqxX0A9ccSvAcPg/UHNSU+Q4h3xcdzIw2WN/Fwe2MZdtWljeNZBA61Jpp3TveuZXbTg9bi/Dv1dHmencKDd5Xgz8YnGByf/MyII1X5GQ7BmtnU0zNQteiRTHEu7ba65k8mJHzhb+oVSgEY3zVQT2OuQr2bUvYpY5o45onWSKVFkjkRgyPG4DI6MpKsrKQysCQQQR1lFWDqGXtWAIP3B7B/YjsfjVgIokfbrXPr6006aadNNOmmnTTWifWfgmMyOBzXK4BJBm8bQW1JJ7srQ2qmPCl4Hr94T3vYLLFMACCFVyUOhA/Xu3hth3PcoeC5OJiyZDNKpljaGJLkRogyFrUAXy+kC6J1e9jzDDmY+O/cEkgWgapm6DXXsaoX7n83DTAZ6vDYaFxVl7xvtWIQuSN6+sxBW3/5M+yN/PjrTvb/AFlG24TYxx9sLtRUpjfKmJJrj9DeOrpiRdmhWsotg8lU/NnHJOVMS4U2e2sUegB3Wu5l+T0KgLz0YJogjEgzpEqEfYn2pCu9DydDfg72Qe7efXO37XG8ubt2LMny2Dh34L2oKghlcd+9fz3rvxNtmkYiHJmVrC9IDy5XfihYHt7+bGo28s9ScTLkP2dDGxyxv7hd0txvBEUXZ9ztjiYknuI7A39x9+tbN++MHp7Izpo8T0ztmQpkcMf1vUbByD9K8QSCOJ78X0LB1MsL05kxwF5stiABR+UgJa77+osABY9+wQCK1qXO5yjKoYYDG3GfvCpOsciqH13MVYO7EgNrtZRskkkgKMf7h6u9NZPB5fQnp/Ldeld0lfjbglSWDFhdMQf/AMd6uWJtUyMwXeMqFqLhwkYboHwVK0fNEmuzYNUcjwmbgliDzYnFRN2roRLAnaCANDUK/AGtNs6I+xJ6muxeqNlKxn/wjs0IAHHhEKjAqlACA1Rq+iLsk1q25e3yK7BM/JkLN/e1NbeWYiyKJqqNdj+cjPJMfHLF34mmqeQXWyoBTeih7a4Kgknfkggnfj4mWR6w2iNRImw7QWjIPB3l4BasqFKlVBNeLHZ671QNgTuCpzJyDVAKLVvFjjRPv9j31Va9JOXUSXWph8bCoACFXnkKhiQO3s7D9I2SNEa+oL+bpsnxJwpZlWLYtiw1Wq4o7kHxZYqlWRY6ANkCxVWzN2WcIrNk5EhBPXIWQeN3YI69/wDQ+5kX+nThVb1M5Rknzfe2AwuLSxapV5rNY2rmQmaCjEJYpUeKKJYrM7qp24jSEKFLMNrvhBnyeqd3nWSTGk27btuTJnSOPkxysqb5OLEjkgxqiRSTElXH0ceILBhjr1JH/wAsiXhy+fkSt8ty4+hET+qOPEcuQICnoKexerNqlWClVr06sYirVIIq8ES71HDCixxoN7JCooGySfHnraJF4KqDwoCjquh0BQ+woagRJJLHySST9yTZPt5J+2ux19a406aadNNOmmnTTXgcppjIcbz1Fl7hbw2Tg8fO5KUwUf5ftOvvrXVo33GGZs+6YrIXGRtudDQ8kvjvxAvqywWr66N678Z/l5OPJ19E0T9+PpkU9/j/AN7BA1Tq1+1TkEvawaNlRwpPnSr3n+xDr/hvv5115Eb5nbnteZLkoXV0mPOSMHsIx7T6j5/JPk/xsHiEOsYeuLop8/3Fh47N8ao0aNeSffyuQZWbMUJoI2dXdGVm7tbLDyCR3dx7Sdn5PgfjUS3v1Lm+pMSWJTLGeDpya/qFkMe2PfIdE1+a7Or7h/LxJVlItbtlY/T39gtEX5Pd3dDWoqHDQkryTM77caDlmUKAD42So8ga/BGwdnfUF2H0ZI4admLXKQXAUHke2Ldf38jR8D2I7GrlufqLmFhQKsfm1RbIICgWD2oHY5XXXV6zGPj1MBVMaMBoeQCCN6/B/wA+f9fHWU9v9H4KrHGywuxItW4lwt90Ao+/vYvydRSTd52BsSKSCBQFH97Y/wCzXfWsgqcboEAiNV2B/SCPgEb1vtBI8/fYOhrWusibd6J2cxktCqsEUUrqvV/cDz9+6Nf9qJ94yI/pBkJFURXv/wDd7VX2rsHvvtS8WoujfS22XtA7gp+Qw3sHQ3o7/wAffXXGf6F2v5EhVXJssFE91Qbsgiq/+k/ajpFvU/zELBz9QLEjx+emFdUCQe/B++unHxSum32yhACqsy7bfgqNA7I3vxrYB/HUBHpOPEklaN3iYW1NI318WJRQKotZtR0CAxutVz7w8l2vI990eiT9+Q/ex9idT/8A0e4daeF5lkUUBbOVxWPBCkDWOpzWCuz52P4kpY715U+fnre//Cxthxtg9RbgSzPk7jh4nMmxePjLLLGDQbozgkEns0TesT+t8j5uZiRgrccEjOB4BeQp3/8AMOBI68DvvvUzetrtQjTppp0006aadNNOmmuEiq6OjqGVlZWU/DKQQy/+5SQf9euCARR7BsEexBBBB+4707HY6I8H7HVRvOONnAcl5Rhmf31xucyFNZlTsMkSzNLC/Ye4qPadV13EaXZP3683PXnouPD3P1JhNIJf0W5ZkaOYwhdGfnGeIAI6eq9gAe71l7bc8S4uBMOQLQpa99mMNGSTdAsVLdUBdKK61gslBI0+PBBAJAGjr8j53snz/b89YQm9PJgRp9IQP25JLWZCStqSfN9UBQHepDHnMwFAq1EXfKgD4oiu/wBh37/fptQjWD+WdMdtoDeiCxAIHzrxrzonXzrq/YOwxHZ7gUr8zmWI5Wx5AX9RJUV3YIDXqnlyx+oHLk4C/XYI76/t8WPuBX/r5TDsO+/tJOiO8DTA6B+RoEDej+D4GvMXmlmwZF/rmIghX+YwDXYXkA/KgwsmiApP38VcapKhfizcgeB7FV12BVdm/q7/AI17NOeNFHfKDvQA8EA6+O4bB1v8+djqZbXv8MKIZsyNw1AUykm6AUBRdAnz7mq6s6o5YGZzxSjXRNgCuz596BHd+a+2sjrymU9qRllRdO3brZ/7gCNnf+x8/wBupXNmz5S8MSMfLqizAsWWvKg/UbvyDX+mqdUocrv2I9vfwTV+Pt79E6/c1nkk04K7A1vtUdpKnWu4H8a0d+DvxvqzyYgbJMc5EbkIwLmlcgm++/A42B4BNm9dwKgdKTYs0Caq/J/79/g6sZ/Ttgf4J6bUpmZS+cv3MyQilQiTCKpAnknuPs042LDQJbx4Gzv78FNjj2T0JgBCHO4z5G5M4BHUxWOMdksQI4wVJ/ykD2BOKvUuR8/dpwB1CFhB9zVuSf3Zz/Gt6dZb1YNOmmnTTTppp0006aa+EbBH5BH/AO+Oh8H201Wx65UhV9TuXRjys8uOvAH+km5i68z/AD8/1+dH5Hg9aY/FbFWD1T6o5jiszYeSGqqEuLGxdSOwS6mz7mz/AJjrI2xSctuwzZ+kOvZsdTPYH2HfjrsnxrQ9yZDFKQQCoXwdFh2r260P/n+39+tVt93XHfGmhEi/PiKrTUekNKwFXfAAjoHvsjUwx8eT5i32hRu+wpJAI6I7Fg+38/fzo7cPt9juFfWyG8eG3plHyB48b8/fZ6qth9RQR7aseQJAAG4twYI3I9NZFFAPHdWeuuzxk4ziawBRQf2ir7u/bz0PP8nWPZFUkc9hRmLfIbW1IJbem+RsDet7PyPnrHPqlkzch2hcN8yT+zvkEZqNmqqvcV7dfe7YCvErl1ICigprybPIeRYNC+varsHXbxlNmmgQkH6vKMSVPae5fq358r8f3G9ddnpnYWnz8RTKGuZajk7AA8jkR9uwKoV++ucvKRUf+mbKqL+gkW1Hs/vfX5H2vZdSpJ26VG7mACkedDydbAC93kH8+NbH32CTZMkRP8l2BQcSAzFTXRKlaA8AAn2v9hHvmKo+o0CfJ8WbPf8Ar7a4WKdyKQPo6RS7Ej4UAk7B8bAU67vHjez5Ixvv2Bv+PlpOqloooZZZWJk6RGA5NZ8HpSfcH3rVzxJYHh6KlmJUnj2b+kC+ya/9h2NWh+l9RqXp7w6s39UXHsb3/AJd4FkckD/mJfbHXknfXp98OIZIPQvpKOW/mL6f21pBZ6kkx1karA8cq/2dYS3dxJuee4XjeXOAv2CuUUdUKpeq9tZ51N9W7Tppp0006aadNNOmmvh+Dob8Hx+f7dP9NcHwer68ff8AGq//ANSNVK3qE0hBR8hx/F2xtfDiF7dD6ST9RH7VRrwfHx5BOoPxxjRPU2TGXVJM3ZMPJUFlHMRvNjlhZBJVogrAA8QVsgkDU69LknDAAv5c/Hq/pLKCA3Vjtugav2/MWrNGR5VZRodx79juVgG2AV/pYa3sfIJ0fI11pHumx5mXnq0PY+cxtQWUopPKyLFHx79dj21kdMmOKFVNtQolR12STTXXVgfewRrGXw9+CxZnqRxrNILLQSuteUs8UEEdaOy0kRlMNh47E05ieNvclEjgKpByBs+2xrEYctaiBRSEEnFQxJZUAIWk40G6UqfHd6tk8jSSF1oDwvZsqD0TRsEirX/U61nyf1J4Lgr82MyfPeH08jjnR7lO1ybjta3iZvZliDZuP3gKE+5Q8JvinWLBFCzMC61G6elUbi+FtcuYXi/ryR4kzI7WGpGZQeIAs8ASxPiwAfuPJlLqsswTkfpt47NChxBayQSKFHv97MZOZ8v9RvRr1Hi/Ulhc3n/VL0B5pjcJjPUPh+MyX8dqen9eF2WhzXguOx01itJBVjmH8cq4wQWsmpljtvdtjHle/wBMQ7DuCLsE+FibT6h26WfJ2zMXHbCl3FmCJJi5RkVEeQsvCMciFsyE8UOuct8iFTOJGmxyEEoJVuALAA0jMVNsCSav36urM+HcpwHLMJiuScXytLO8dz1CvlcPmcdOLVHI0rQLQWa0yn6kYdyyK4WaGeOStYjinhliTvTfszBly8eYSxzQTtFNGyE/LZaDA0tVYpWA4kdgkEa4GKswEqKjo9EMXAJse4Hg9eCbAHQ86yG7MJ0esuw0kftqNA7aQlQN/wDqIP318b+eorvHqOTcZ2xFJaSVExkAJ7EkgDWAOiSQAOwfzQ1WY+AYlM/0pxDFhYoKoP1Ekg+Lq+ie/wC3zaTgYf2+ExFbWv2+Lx0AGta9qlAutHz8j7//AH16r7DAMbZdpxh1+m2vboKqq+Vhwr/PYP29xrBE7CSeeQeJJpHB+/J2N37/ALjo69bq766tOmmnTTTppp0006aadD2CPvpqFH6pMf3ck4pe0R+4w1yp3DWi1S8soBJ+wF7fj43v79avfHra0n3n07kUVEm3Z2O7r0wEc8Ui2aPJAWv5Z9yT76mfpaRhDmItfRJDJVUQSCAb9xaigLqiaonUYJsa6KzmQdh+xAPn7n7+d7+SPn51vrBkuxRQQl3iBIDMCOABPbeFs+Pb3OpSclxS2PI9ifPj3ryR9v31GH1wrch5dl+JekfGslPi6vLBkslzPJ0bk9G3X43j2rRnHmfHyQ5OvXvq9uxMtOWsb614KMtyCm91J+vaJtrxi005jLQSWg+khJWNfUrUp6JFHoAUQNVRWYqpVbagW/trx57brv8AB/fXrUf0zehmPxdXEw+nmDlrU4ykNi6Ls2RLsixtML8dyCxUsOFU9+PamIpB7ldYZCztfZtyXNo/qnjscecbhGHmmUcALU99iuh9uqEYxSz8sNVn6jyqh7UwI9+h2boe2tWc09AW9Maua9SPQ21dx2RpV7GQ5d6ZZe/dz3BvUfjkKM2cwVjD5ae0tXK2Mabb42/FIb0l8RQyXjBJ+2MZ3DK22SaHG3ACeQTp+gz1VIsvEnYhVf5kQDOnMjmGBscj141W4qO3IxrXQDw0REy354uSLqyTyvr9tZb+n/gPIvTzlqw+nVGW9+nj1MoT81x9OxfqySemHJbFaSzkcfXjmkSzYrZi8YaM8FKOevJeWa5YaCfH2Jr1syMDN3/FmfJAxtywpGxpJYlRxmwRuwjd6IAKqfoLd0/ZOqhX/TvxjZmRgSYyT9NHsrYAC2ehfuRfvqcWKxUVnJ46uwZppL+PQb+6yXYk8+NKu+4Dzo/bz56oNi9FYOZvu2Y0kkpyVz8MuWHG1fLgAUD7mitm+7bsC9d+RuMsONkEhSpx5SSEHXGMge/d2AR2T7++rP40CIEXwqjtUfhVAUD/AAAOvT+NFjXgooLSju/pVVC+fsAP9mhgv/f8ns/6kn8eO6vXPrs006aadNNOmmnTTTppp001Ez9VCpBS4ZffwEv5SmGH2M9WCzonXjf7PYJOtqfB89a4f4hsuLbcP0xnTOESTOzMIMfBeTHWZQeuIAETGyfNDxdTH0epkmzoq5XDE4X7lZCoP5ILihY8k30NRFlvrJEpYgqfDdpAJDEAnRYa0p8jY+d70etd8n1JiyYQfmHRkaMlCGKsfDEXQNfnqvAq9TMYbfOPKOlr/NyqwBRvvwR+e/5GoXcY5wcl6z4rkPIYKeJGQi5j6QAJO6Q1eSYm3iOU8dgC25HYyZ7HTZin3xuDJbxEbBI4rQgEegj28mXDM9GX5O6kspBOM5ZJuj9RETqS4RSVu7I71VlXCKy3/cUoWTaj9j110b8jxqVVjtG5EZTsjwTs6GgdL4PjRDb8r9X4653FFxI+cOZG6cSwQSFrC91Sg9kDxd3Rutdcf1KxKlSDQ5Ad9e1E+PewP51jHJuSYjiuBy+ez9mvWxWMoW7Ntp5Y4FlVYJClOMyMA9q02q9WCMNPPNIiRo7lQcT5u65WTu2PiQ8pneZBEFa+LcqFnr5YBAJZiq0C19av+PCBACFUEp9VeT7+AL9vt/oe+5+nfHXMR6O+n1HKRPWvLxqtcsV+1oWrjMW7mbrQyV5AsledKeRrfvoJFEseQ/dCQLKZFGYNt3mKRpgXBKkIXSqJjVI3TlyFjkD4HdXfi7NNAS61xsIwN355d/5b7FX4/YVqS/DIBc5lxCuQzJZ5BjVbeipijnVm/JJAjIYEjWgNb8dTD0oseR6t9FwQsC2b6hxC1j6xDjyCaVSe2IpSB2wsgWLJFv3NjFtm4s/1ccSVVo3xJHFSLodMVJ9xV0arVi4+PH38/wC/nrf4e/5J/wD5/pWsPa+9c6adNNOmmnTTTppp0006aai1+rSMp6e4fIj/AKdyzHM3jx23Kl+lon4AJmAG/ltAeddat/4s2GL8Otv3VwDFt3qbbDICLHDMWbE7N9Dm6+R34Gpx6AUy7zNADRl2/Iq/+pGRwQOrIojogi7+2q0Od87y/DYcPyCrho8xxFJLFflr1I5XzGHinMK0MvWjR/bkx1aQyx5H3IiELwNJYo10ex1qh6X3PbNzgmjJRZGUNAihQjnjbA30COwpFXXYPgZByIJseTg4JBLHkSbHuoocru689dajnwSjxL1E5H6843JftsrxzJ864xyrCzRSsgp2L2C/fRZuhZ/l2MXm6l+7BJXdTFYrMz1dMIpF649WZEm1S7BuMNJJFFPiTchy/omWnhZaDMK7vwQSSpB6+8eETI0bcrBLAi7BJP2IPvfn/wBNdTk3PeR+naW8TD+oT0os167P/Dk5thclnuWQVq5aH9rMnGsnAMvNAiRxTWVkhd5wWEMDOY3p5dzwt0AT/k24oWB/rYUqQYjswoAfMRWjN/TyLHiO7HnX2MOVegUJuwCe7H2ABv8AkgdivOs8436fx8lsYHnPPuY3vUqw1ejmMHUes2H4Vj4bkCXqlnGcX7jB3lJoZ0s21/dyssDTokkCp1hffPWEeDly4m2Y8WCgm/T5MpcZOXIUeuEmQPAT3VCpsnka61f8bbnaFWd3L/V9CWi10Pq9jXffXjsAGhLGhloo4A3eCzKWY72D8dza38k+Sfnz+OrvgesMXDx4wZwrMvYduPZskX/mP7/z33rrl2t5HZAnFVNggkE1+aDG+V9+T9yNbk9GrKZP1N4lVQhhDLevMAD4/Y461aJJ+F2ygAEa7iBsnXWdfgbvqeofi16NwY5lkGH/AMw3BgvYAx9tnctQPQ5Mq2ei1N5ABinqzEfD9P7jK/QPyIU6osZJlFWDfhbNdm6HV6sa+OvTgeB76whp0006aadNNOmmnTTTppp001HT9VFNrfozyVk/roWcHkl860KeVgdz58eYyy/33o+D1rj/AIrsBs74H+sWQAvgjadyFi6/R7nDISKr/KWuyAFBI71M/h/KsfqrblYX84ZEHE338zHkA8eex+331Vdjs4iI8UhDRMjIySKjoVZSrIyOCro6s6MrBlkUsjqVJB8fNk9cvhMFeWRAhLKORUcl7BUe6hiauuvvfexObtKynn8sArwpfDUygGxf7eK+muXQrUJfWz0MpVbNnlfAsLFm8PZsfvOU+mYy2UwkORqKvfaOBv4uzHYrGUDvjotDbbGzfzsQiQSW66ZX2f4xYuX8nat3zlxHYtFgbxJBDkrjO6f00yUmDCgwFNQJUUTfercuyMSSqMQASwUEOR1QUjom/uCPNf8AVr1PRrKehOdxTngvCsXgMphBAmY4zmasF/M8amDzwxwySWZshVnovYq2DXuVZZYrViGaRwlqOQLib4nerPWmwzRpum7ZGVhZ4c4GdgzcMPL4Kpb5XArJFIiurSQsAVDLTMPEk2vZYZmDCL6gCGUj6lJ8V0CPxyBN9eAdZLzz1N5pxjkfE6WEyfGauE5JPl6gXI4W/kMhVm49xrK8ovy+5Dn8dXkp3a+NixtaOKmsmOlspckmtIqVJIJ6b33C3nA3iTLTdMnL25Med1XJjjglTcM/G27G+r9PNMs0U07TykvUscYRRGzFtXmXZzCyII0CycuIcEm1VnayKVbApT0b/ca6fpr+ofNc9zvBsVJiBiRmeFjJ8go6jkmiz8tGrkYcjislVy9vHnjktdLEceP9uzm45sjSOTXGRwdlmu9S7QNk2rec+PeJZ/0O5gYE/wA2T5R29J2xciCaBojNHuTZDIwlJhw5IYnMRko8OIcSMkK8K8QCCjA8+QbogeOHG7NeSOx72jfpFL5P1UklkLscdxjLW9kfUDLLSobbydD/AIvSnQO/p3511tL/AMP+WXevi3uWbIzzDavR+5zF3YsQ+RmYOJxs/SCFmeuNAuF7IBBxd8YIxi+nMePiq/P3OBQFB6Ecckg5+ejVEfv41aH17NC6F+ff/fetadOudNOmmnTTTppp0006aadNNap9ccRNm/Sbn+PrRGWzNxnISQqCN91VVt7HcQu0WBnG/P0nXnrE3x02mffPhF8RNtxYmmyMj0pujQxqe2kxov1QKjxyQQlh4sWp6J1f/S064vqPZchiFCbhjgsa8SN8qj+CHIPsLurA1R7ZkeN2ZCQpJYDuPaVP1KRojwVZR4/Gzvr86e75MmPmyhS4+oDipNClFjlYog11fZsd963Rx4xKGQ0wX34qD39Qo9deQDdkAax2/kJSvhfAJ39R8nfn6tk/YEAfB8jWz1HMzc5ylMSy2wKlr6r7fcHwbseQb71ccbBj5N2ASor6bvsWD/31oNef+nGNyGfmrzVsflp7zy8giq8Yy9fK3rlKRMc9m40WHQZJog8USWI7NlpInEilwZGW87h6a9d7rFgRTmTLxIccnB+dvmBLiY0OVGMhY0Z8w/p+Skf0WVChARQAoIucK4cD2qqqt2x4uxY2RZJskgH7/tXWs945c4/y2tieQVK8V+BHuPi7WQxc1a1WaQyY680VfJV4rdVp443rSn20E8B0DJC6loLuUe9enpc/aZ8mXEldcZc6DEzkmgnWN1ysdZZMWWSCYRyMsyryJSRVJAZRVZxikBljVSg+myD0fBoMLH91XQJB661tfFU6lZa/7erWriKNY4hBXghEUXbEntxiNFEcZSOJOxe1CsUII/lR9tniy8uaYCXJyJRI6u4kmkkDsHLKzhmYMVZ2KEglbIWga10tHGoBCKCD9rPv971YD+ibEzPyjmeZETGCtgqWLM50FE17ILaEQ8/UzJjy7fZQFJ8sNesX/DQ2fIl374kb88LnFxNn2za4srygycvcf1MkF32xjxPmljZqq6OtcvjvkccfYcMtTS5eVlMgAJ4QoIhISOx9b8QvVj6vatWQ9ev+tctOmmnTTTppp0006aadNNOmmvE5JW/eceztQL3/ALrDZSt2gE93v0LEQXQ8nuL9oA8knQ89WT1JjfrfT2+4dX+r2bdcbxf/AJ+BkRVXv/d499VOI/y8rHkvjwnhe/FcZUN/xV/xqg7LVPZmaEg/yz7ZVTph7XdGQSNDYKgEfka866/M56vx5sfdM2KQNG8c88bREFTGyMVCke3EDojqqI1vNtT/ADk+ah5KUjYN/wBSlVNgddEEVddEX9tYTfijWI7f7nQ2pI+Nhvud6APnyfz1A8m2xye+wCD72R5v+Tf59/vIscqJCa8d+3akjr80e69r/J1jL7JB75GCn6QWJA+Sdd39I2SSBryT+T1YJXUlko+BfQolV4ITR74KAqk9gUBVau8HfK+/Hnv7n/U+f217GNUOe5i7Ha+T9TAhlAC/J7fJ2N/Ya0B1a5pGRjGAOHFaAHfQ6H7Ch9+tfc1CNvA8fjvkPOs/oRr9Khe49ngnbfCgj/xHkD4A8fjfVRiMrEDjTfMCK1DkCRfm7FfvfWqF/A/f/wDR1Z3+iiiIuJczv9pBtchpVu47+oVMXDKe3wAQHuMNgn6t/wCfb3/hpbS2N8NfXm6yRFBuXq/Dx0Z0IZzt+zQGTsiiFOWFryCpJJBXWqHxzyBJ6g2rHDAjG2tyB7r8/Llc+/QJUj88b61Nbr0o1hHTppp0006aadNNOmmnTTTppr43x4G9aOh99EdfL/2nq6o0BZNEGgPe68e+n/b+eu/YeD5PXjVVvq5+mr1Gx+cy2SxGGl5RiL123djuYbskuxx2JXnK28YTHYWdO/sb9qliKVh3IEDa68iPjf8A4SfXw9Sbxu+z+n29UbTuWdlZyZ+yyRvnRCeYymLK2uRop1lUuQWgMsLBQVayVGxfpL4jbMu34+Jk5K7ZkY8MMJTMLCFyiBCyTojKoNdBgB32RV6ihneGZDEtJHmsRlsRJGWDplcNk6TId/V3LLXjYb0NkqB48Ab31p36g+Bu/ba0kebtG/bZIgIePP2HPgYKliwxjJ5BuyzALXYY9jWTcD1ZjTW0GViZIZEAMGVDIps9dg937CgaNn7awKTF4xJABbhXtPw0c6g68/UHQ/HnetaG/P4xplfDHLjJUyHoVZxMtavr/oAJJ8WLJ61KIt/PlQzi76ZCPv5BYAEV9vvWvUxtSqZQleRZ5GBCpFDM5JOthVWNif7KPq1skffqhj+FOdkygRLkzkkLwx9tzp2JNgcVSJiT70PsftWvqX1IFDMeKkeQ8sSra0SWYsONDs9dVet48O9KfUTlU8cOB4jn7cLkL+7mxc+OoxggAlsjkFr1DHGzfzCkkj9p7liY6HWVfRv+Fr4meqM2GH0z6C9Tbisjwl9w3PbpNi2mNZGAMrZm5fIURxf/ABGRHlBFCM3eoxufxC2Lb4Zmz942+Jqbhj4s65mUxVR0IYOdMRdBmX2+oGrtc9EOAZL034HT47lrNaxkDct5CytPbVa0lxwxrRTsiPZMYUe5OygPIW9tVjCAe5P+HH4V7l8Hvhjtvo/ecvCyt0TNzNyzf+XK/wCix5s4xscaCSRVecQ8OLZBVTK1niFoa1O9ab/B6k3/ACtzxYpYsd44oYhMR811hUqJHUWEL/3cATxvsk2dbe6zxqK64sSBsDfkf7b8nX30Pt9+uCa/34/On+/3/APgH8nr76hra/U5zjjOS5VV5d6Hc3s18fmMzWwEvBsPyXkomxmFu5LFyT5eeTAVozav26CXMV/BYshVvYax+/jkEiR15402/ZOPJMuVtWWyiWVIjiRTznhDI8TGUmJQDIyBoflhkeLlJyH9MS5+h+D3pzeMLaJti+I/pzHyJ9v22bdI/U247PtQGZuWJh50cO3Rx7pMRHjwZTQZi7lLizQbjGuHJwLvLBsv0n9f8P6nUsdvjvJ8LlbmZzeAmrzYLM2cZXvcfhqtflnzIx8NOjXknmmrVosk1a6LFaatarwWY2iFdt28Q56oRFNG7ySxAfJlZA0AX5jNL8tUQc2KBXKuHVlZQwIEQ9cfDDcPR2RlEbrsu44MG37ZuaSJueBDnPj7u836SFNvbKefKyIoY4psqTBE+J8ueObGmngIlP8A/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAIDAAMBAQAAAAAAAAAAAAYIBQcJAQMEAgr/xAA3EAACAgEDAwMDAwMCBAcAAAABAgMEBQAGEQcSIQgTMRQiQSMyURVhcQkWJEKRoRgzQ1Jkc5T/xAAbAQEAAgMBAQAAAAAAAAAAAAAAAwQCBQYBB//EAD0RAAIBAwMCAwUGBAUDBQAAAAECEQADIQQSMQVBIlFhBhNxgZEUMqGxwfAjQlLRBzNy4fEkQ2JTY2SS0v/aAAwDAQACEQMRAD8A/v40pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlR3cG7dt7WgWxn8vUxscjKkSys8liZ3IVVgqwJLanYkgcQwuR+eBqnquoaLQqravU2rG8gIHMO5JgBEALuZ/pU+tSWrV28WFpGuFAS20EhQBJJPAxnJr91d1bbu1Y7tbN4160pISRrUURLAclGjmaORJFHlo3RZFH7lHOpRqtOVDC9bhojxgEyJA2k7gY7ET6VjseWG1iUJDQCYgwZieD/tWXht1bKh69mCdGHKtDNHKpH8gozDj+T8D86kS4lwbkYOvmpkfWsSCOQR8q+CfP4OtMa9jL46GcHgwyXIFlBJIAKGTuBPB4BHJ1EdVplYqb1sMDBXcJnygV7BiYMeYBPl6Z5FZKKaGeNZYZY5YnHKSRurowIB5VlJUjgj4J1OGDCVII9DNeV7de0ppSmlKaUppSmlKaUppSsPa3BhabOtnJVImTnvBmQlODwe4KSRwfB5+PzrFmVRJIGCfoJNK1ZubqpVFwYfbsyu7VRNYy7Ae3X7pXiEFWtKoeWc9oY2HQ109yFEEru5h1VzqVs3xZtsyg25N0rKBiWGwL97fABmCIIxg1Otltu5hEttAMjODnHEYwZ9Bg1XqxYSbK3bzSS5u805dbuSLW7zFU4aJfcX24kgDFPZrqqLEwAC8c60Gnu6JtVfe2TrtUlwMX1SC5dTao/wAreCuxFIUbFGxQA0kEm+63Ci213WLcDeLRKqe6+L7xBmSD3PoKgmd9+/ksZMe6jBVufVA10aNmYlYiwkCApExMoKe4qycqGB8HWo6ravanV6dyz6e3a1AY7QyQVkmTtCQMkEmCeQIza0rpp7Vxd3vbjoUVTBaeVHnuB+98C2TivqRc/Jkmi21bnx8McfFmCrNWmnmnmkaSaeaFrKtSgVT2M473mVv/ACo/l5gmru6hxob8KqQ9pLhusLkYcgbUtrESJO4AtgCDETbRFF9d7xPvQQFABEqZHiY5IEKDHMEkTGmmZxcUK5GMWpQ/uGRY5GbhCD7sPDqVCnuVnYiMOR2dv2rq/YsXbUjXIt24xYqVzcYCWJUWySoEFZMTugEyaxL27hGwqqHiYgEczE847nMYFa/z3VrqNjDbx2xrOYwNv6wsLslGhk8Z2wuGb3Mddo+9Zg4dlnmpzVpTIoRnkQ8Dj+tde9o9OLmm6FY6jp7i3Nw1bWdPqdOqKTINi/bD3LUESbbBwyhVcAkHZaHRdOZ1fWGxetvl0V79q4BBUEXFbbIIGAqiMk4htxdJvUXurI3a2G6mYbGwRyRLGu5sHDerI1kccNkcJb9yatHMp5eaqRHBIrEQNATJHvvZX2q65r7i6brehtqGQi31DSpesK11MH3+luki2rzI2sc4AIANU+p9P0FtTd6fqXYBvFp7gW4QMfduLBxnkQYzmKt5TzOKv8CnkadkkAhYrEbN58j7Q3dyR5A48jyPGvpCurglSCAYMedaCslrKlNKU0pTSlNKUI5BH8+NKVoXqDQj29ZqTQrNLSyKWe5e/veGaF0abnlR+k6ToUH3nuWQHt5UnS9T1l/SNb221vJcLCPdT7vaEyXLHLFpAgfdMcVNZsi8SpYrEQc8mewI8vz7VrOPI4qQpI1OWR1BaOR4Zh2Dx4Dqnbxyo5+QCo4A7daRurL71Td0csCAItySskD+eBJJk5IHJjFWzpHVT/FYoMkwAB2+6WJPbIYV649wbWsObkdSG1LVkeF5kM3uROO73YS4j5U8ue7kfBIHPPmF+t6IN7+3obFy5Ze5pzcCur2rhAN1FIADKwxvAgkEKTzUv2HUlRba6wWNyqXTbB8QMSGGDJliASRnFYq7d2hkJBJYxlSXgc9tl7M6hj5J9khY2IbgkSxuOQOQfxU1PXOn3dpuaW3uX+VvekC4BywZCpg8rkkY3Cpk0WqSP40wIGbYK/PLZz3Jzk8zhrGd2vUk7vYqLL7JqhkLoTF4X2yQnIUqOw8EP2kdpHxqNfaLSWmYrprAuOhtksLviRgQVIKQQZPMgV59g1DsCXYqCCSxDhSDO7soj1BGM4xWFXc+0IpxIuPgaRWPDpYvl1PJ+PuZAOfPbwF8HhR86rt7QaW2fejR2ZESLbOrnxDHhQYmNwmCAan+w3mG0XvDPK+7XI5wAM9vT1zWX/3ljpav/B1PbjiRgrvLKwCcH7AGi7nHHwjEr58gHg6tL7Ye+VmXS2bfuzkkMW2DmJUYkgbROcyTMVm6fqA4UXCZIXdOcg5wwBPMAQDjMjETl37D7rV4IhWXuVu5A8aq/kDhmgA5LfB7/HyOdVU9rHa5C2LdsOWJY2iJzg5GZmQCQRPxrN+l7YDueSAULH0MgMYGfz7TVk+iuG/3FUs7lybM8VTJJBiYI5JE4lrxJPPYn4dllRmnhSFV7QDFMWDK68dp0HWanqGmuam9sVGfZaVF2ghT4rkg8sPCAR4Y5M41mqsrYuBF7qGz6lgPUYHc+XoasprfVWppSmlKaUppSmlK1V1ZgD4bHT+P0sl7ZP5CT1pgQPPHBeOMHnwfH541putj/p7TQYW8pJ7AYkn+/wAataRouhceKPjIP+/f0HNV6qwfSqyBmK+7IY+flUkPeF/wpJUeTwvAPPBOuU1Bkyhk7MEE8ycdiDH58wa2kFgQ2Jxjy/EVjKghr3L9ZI0T3ZPeB4PaxcBmHxx3cgEjnwD5HlSVy3ba2GVdhBG7ZIkyR4pkwJxBAFZN4mViBKiAIEZAGR8vhk4rH2LUQleNFk5i7Vb9NlUE8kcSFexjxxzwT55B4Oqly0AAXCsrHw/Scz3+H0716DtMgD99/jWDyXf7ZMcCSMQTwxCjlQCvkg8ckfPH4/xqs9u1cy/iKiBuJ79ogYnn8amBbvj0EQfjz+n9oK39QJdrdWrAoblI4ZXlPB8N9zog8eO0AHk9wPwCa727KoVKKAYMEEjkfL6/KswSMAA8nMn8J/4FY25NKvKqxVTx4DMB+CefPA8c8fj4/jxrnRNx24WcAcARGJE/iazDCIODxAB8+IqB52QS1JzHM6NE8T98TcMrxTxyKCVP8ghwf+U+QQfMdsByUnkg45hSCT8BIn5gZqW08OGEbSrgtBiQAAJ78+tdL/TpXkh6VYSaUfqX7mXukkcFkkyM8cB/uBBFEq/woA8ca+sezltrXSdMrZJNxgexBcwR6EZGPpXM69w+quQQQu1ZE9lBMz3BJHyreWt7VOmlKaUppSmlKaUqE9Q6RubTypXnvpRLkEAALO1ORZmjUEgd0sayRgnwC3nxqh1K177S3UnIRrg7fcg/rUtllW6rNxMH54/frGPKqByEQALxWkHA+412Kjx8dyFueOfkA8/jnXAvdCgghgwExtJPwA7zW9VCylgVgeZAJ44HJ5x9Oa+N7WOSwbhssHaPs7GishAQSS4Hs8BiCAT5HaAD+NR/bRs2eIGZylwk5mCFtsJ4gA5+OKBSRIBPwgn5CRWNtZXG88/WRADgfcs44PJ+O6Ic+Pz8Hz51CdTa5Lrnz3A/MbJB8wQI4NNrf0XP/qP/ANVGbmXx454vVwvIDD9XknjzwDDyePzx+fGq51WngxdEgYwfx8qlk/0P3/l/3nNa1zvUXYmMuyY69uzCVsiqhmoy2nFpEcMymSBIXlQOoJUsg5HPbzxqhqOoaRSLTam0bzbYtqSXid0lQuFgEhu4BPFW10WsKi4umum3/wCoFlBxIJmJG4AjzIzkVFsjvfbUsLPWzNedCCEevDdlDAqvPHbTHPx+eDz4GvBdsBVJFxzOSlq84gzmVWIiMiR51idLfzuQrzO4qM/Xk8gfhWrK2WqySbgu1nzVykYYYLEAxdmuHtGeKKv9NLaMQkY+52ydgCrCe5iQANQpdtnUi4i6gHw29t2ybSNJ2+HssYDEgMeWzVy5bf3NpH90pTexKOGIEK0bRyWiD3BMiu3nTzAf7X2RtfAGUTPjMLRglmCBPdnMCyzydoJ4LSyNz588c/J419q0NhdNpLFlf+3bUH/VEnPcAmAfSuHvOLl664G0M5IEkwJx++fWpnq3UdNKU0pTSlNKU0pWOy8IsYvIwMO4TUrUfBHPPdBJx4/PnjxrC4oZHBAMowyJGR/eD344r0TuU+v4yI/WqPS3YaUlevaZI/qX9qszuAJJghcwL3fMnCP2qo5IXwuuCa377e6keAsrIR4iEObhIxB7T4jGa3SkDaDkmIJHGY57cT2FfTI6oD3MAvHI7iAPjn/H5/7/AM6pwzbts+H+UH8hgZOal5EHjyPH0qMy5WnZsPVrOLUqE+4YuJIogD+2RxyvPIKhASQeeQANZHTHYXubUEA+IElt3bAInMnJ7/GsBtJI2xE9hBzGI/WKj+UpTztG3vCqqEs6RojtKQQ3b3EMEUjkNwO4ggBgRqpNpQxNtG5I8AxGe47nJjvmpFQEHC/TNUxg6mdIN4+pffHRXK7UyO2uqe08DjMrjMpuKvSqVupOA+mSxayG0ijtYtxYL6kRyCyPdvVRbu49pa9LILUr3dIq2rfVPsunuO8A3BbXfatqSii4SIjxELHG6REGrtu/qEt+5W/cW2T9wMQskg9juHA8xIzAid82cdRqoUighRAp8KiqAQoA48Dg+eOT+fnzyda25qrjO5ECWJ2gkAcCAAQBjtA57UhiTuYuP/IkkniSD39fL0rE0Kcd/L4rHCJWW5lsXX7O1SG9y/XThhwQyhWBC8MSR/jWOk3HWaYsx2tqLaFZJHjceeIEHkeRry6dtm42cDEYOQw/CQfkK7LRII41jX9qKqLz89qKEHP9+F86+4AQAMQBGOK5L417Ne0ppSmlKaUppSmlK/LqHVkYcqwKsP5Vhwf+xOn7+tKoVurAU85Bew18zIkOSaWGetIYbVK3RumarZqTrxJDYhkiThx5MbSRNykjA/Pr117V/UEEZdwUOJ8Zz3Mx6HjgZFbux/kp/pxHHJ/D6V6spiqOWrrXyKtNCPLxiV4Un+3hllSJ4w6N55j5CcnwAOOKovMjMygAsQZJ4iR6TMx29KlqqPXfrDgvTth8ccZt6bce8tzvfx/TnYGA+giy2etUUxuPie3M1WeTG4BLdqJMhkI6801rI3qmKoQW8pZgrma3aua1iCwCqN7O8Kig4MMTtkTgEjsZrxiFE5JPCgGT8OcTIrR2Xtf6jWWjh3JXwPQ/auNWKO8mxshYXLZ6sDBOj17Wbmkh5yMPugCCVHR7YEcDiGWOSCtcfQKzKXvMsQtwZABEEkKDgdxOQOR2mQET8uRH5gz8I7YImaqZ10y2Y63Wdj7J62bRyfpc9UOByq5v039cKV6G5snM7oDyZLH7Tq7whH0+NfMh6ta1tPcUsuJyFz36FeymRsVo7udq5bshnslddotpGrsCFuJPha4yg7iu1iEgR3iARWRJgwM/D4fP9POrC+mz1L5XrLBuXp51Lw67E9QXS2b+kdSdjN+hDd+nZayb32qspMk+3crII5rVL9Sxt+1ZhryvYx1vG5C3p+oaUaZlu6cl9LezaYgHZ3FslSVwMAkhjBx4cAeJgE48s9gAe/7FXX6XVPrupexqjgSLJubFtKCRyYoZhNKR/JVY+T/PHnToS+86voQD/wB9WMZ+6Q/AjHhie001TFNPdJ5NplJMgAkrg+RJGAeSCOa64j4H9/P/AF86+x1zFedKU0pTSlNKU0pTSleD4BP8A6UPBiqYbriNPdO4YAOUTKW3UAAfa7h1Pzx8MPA5+f55A+edSQprdQpERcJGZMN4pJzzNbnTE+5Sewj9zUYkl+0s7KFQEksVRQPyWZiFUePJJAHyTxrWuxyO2OxJ7HtP5VYABOTAqhWxKEPVP16dbs/uGJTX9NW2+muzNo495XnqXsjvbaVLfdXdkVZua8djFtuHN0mu12M/10GKJ7YQ/uWWuCzo0thmBv7y7LIhQ8qoESCCBJPInEYrIW5MmYUyMwT6duxzMZq+l54DG8ckSMnZwyMAVZSPgg/awP8A7WB5IA4OtJecrgYBVpx8vy+f6S1UH1T9MMR1i6N9QdkZOjG8s2Bt5XbV+NIfrNv7uwcZy+2M/jZZipq3MTmKdOwWjlhFmqlilMxr2JEaPS6k6fUW7is0bgLirMXEJgowg7pUkCZg5ApGCewwT8KqD0z6ebV9QmI9Nvqryc+Z251Qwu1oYsrmdtXlqrvulgMzdwX0m5pnVpMjicrY2/NlA/AvPiNyZja9+Rq8gWjnqtVf0Z1uiU+9tM7FVYAsnvAHVUZiNgCnbESCDkSakCKQpMyCGEeYnzHrB/ZrpT6eKL3esW2AQrJSTMXye0fa0GKtNEzeR5M3YvI+C4OrXspbNzq+lwdyW71x8jG20SM4kbyFMTM9hkVuoMRpbnADOggDvJIAzjEz+wepevr1c5TSlNKU0pTSlNKU0pXg+QR/IOlKqL1Nh9jeuXH/ACyilYH9/epws/H8jv7h/bjjyQSeD60AuvvMB95bbwPVQOJwcSfPmtvpT/BT1BI+Abb+Y+kfCqqepKravdBOrtSnPLVtSbFzDQ2In9p671jWt+8XP7EjSBpJuRwYBIDyDwdRbcLetsQYN1FIA5VpUjyiec8A+tXF24kZ7kmB+Y7YrmZ6c9+XehNPol6i91V8/kOknXjoZt3p51d3rELGYi6c9TelWUyuJ27nd01YYpLlTGbhw9WbBX8tDH9NFa2+kLqJJYoUtXdO2pF6wrRf0zObSAgB0cyAJgwIO3E58q93AE8kTiIjy8+PL6811px+99oblwEO6dv7p29mttWK0lqvn8bmcdZxL1olJlma6lkwxrDwfeErI8LfZKqvwuudvWryOy3UubgIjaxweQu0H5zziJqSufHX71T4re9DcvRD0xrS6ydX90Y+9tU3sJcc9P8Ap6MrSkrXdw7s3fBDPRlbC0rDWo8fiXutHbWuMrPRgR4prmk0CoRqtWFs2bZ3FXcLceCNoC5mWIG2QfMAV7vAGyDJMiBj59+x7VuHph04pdJOlfT7pnQuvkYNh7Rw+23ycqCKXMX6sBmzmbki4/Rlz2fsZXNyQfEDZF4hyY+TpdTdN6/duERvcsB3gYUcnhY/ucVKn3R8/wAzVvvSpSNjqXfs9n2Y/auQlVmH7ZbV7G1VHJB4JSSXgDyV55PHOuo9jLc9SvXfD/D0lwjPiBZ1WQODMEGex7nFa7qpIsIASAbqz5GAcH9PUfOujGvqNaKmlKaUppSmlKaUppSmvCJBHmIpVXOsdZo91RyIxhNvDV5ElVI3KSRy26/eI5VeJ2j9tHCSo8TEIssbxsytxXtCmzWW25D2kGBGUY5J7kz6R3ntstETsbkwwHPYgcCOBHw5riBv3qb1z9JEG+treoA5nrP6c98puPE4PqxXrGxnNkUt24/J0Bjc7KRYlkmp2civdhs7MteeGCvkNoZqM/1XBLTXT2dSiPaPu9RbuW2ZJkOFIwMqFISJgEEzOeb1a49KXrU9MXRX0YdM9hdZOoWHubqwlHc+3ty7Ijw9vdGUyuZy28c5uNsJbw0dK1WWW7Fm45K1TOGqJ6dVbUiqFiJh1Wk1V3UvdtLBO3xBmBVlG1kwJPfvBwI7CYAQCYGBnE8fsf8ANaI/2t0H6x7ogPRr/Tf6m53CX89FkLO4d1dQN69NdpU66PHHFuF9q4q1ktrWa8pRYMUt/csCBguQuV5xDI0R21KEe916jBI92iXD4e+7wlSORgz+FZfvHn5/s12XxO0NlbDxNbA7A27iNq4SjGlavjMPSSpWirRMXSFIyXlFdZWaeKv3+xHYknsxwx2LE7yctqGe4zPdd3JO4G4Z8JYhT2AnOInzNI4/cV6bjK8anuH3NyOfBb4PAB4IPAfxxzwG8eTqixlj8Y5/fxjy9KmX7o+Y+cnFWo9IVMvmN83yh4r4/CVEc/8Ay7F+d1H/AORCRz4BU8eRrvPYtdy6y4AFKBEJgS4ZnPOCBnAyDEg4rUdWJ3WhwJuYnuBb5HBImJInsDE1efX0OtRTSlNKU0pTSlNKU0pTSlV563V+Lm37QH7616uzf/TLXljBPH592Qgc/huAPJ1yntKudO+cLcUeR7/h+tbDQXCruoiCs5meV4zHaq8ZjCYjcOMyGFzuMx+Zw+VqTUMpicrUgvY3JUbCGOxTvU7CPBZrTxsySwyoyMpPgHgjlkutbKlTBUyDmZ+v7GK2oUN4jIJ8vTH6VyG6q+lXeHpN6g/+In04YDAb/wBj4rEfRbp6Pb4xMebfBYGrJJOY9pZ6DHXdyY6nFGXixuZirbhyOEmaKLN4/K4UQ28VtLOst6xW01+4bOoeRauWyyAkZMwZmBLZ2nsAYNYMhyIkZ5AMjjI/fn2NdAOjfVTb3XLprgt97WoX8Ribb3cc+GyAqFsNlMRItbIY6naxkljC5THwvJG1HL4GabFX4ZOYHjsRWq1fnNUr6W81p9jMnLxM+uD6f8VMMxGe37n9arx1oxebxHUenYx2+uogqZHYPUbdibTw24nqUKmb2djcdPtz+nY6pXisSYa3YGSGXqTPbF+81OGR4oXWKSFSt1GZ0QgXLabpOVJBY5blRmR9CZmQJ3Mz5Y8/Xnz/AL1oeTfPX29u7oF9SM5TxuCtvjd2VsHDl5dm9VItwdPtlvVvbvMeCiztfK7YnyeWzWLjju1tp/103spkqGckw+NioRXLOnW3rAVt7nW0thzh0IJLe54BZwIcsGhTAjivVnfbGQitJH8pMHxNI5EkAgRk4PNdy/SNTCbd3hf4PM+ep01bjgMtPGxz8j55+68w55+eQBwAT3HsVbI0mruEEbryKOIKpbAx3kcGtR1cr9oUKZGzcT6sYPnjEjvkz51brXbVqaaUppSmlKaUppSmlKaUrTPWqq0mDxNtVJ+myvtyEKSFjs1Z1BYj9oMyRKOfBJC/JGuc9o0mxZcCdtyGPkHgcfIye3OM1c0RHvSO5Ux8ufw/tVbiCPkEf51xbAAkD94rdJ90fP8AM1i8xegxWNyOVtiY1MXjr2StfTwmxYNXH1J7lkQV1ZTYnavDIsUAZTM5WLuHfzqq2XVBhnYhDu2wRn74+78flWVVMreqb034zBVU21uBosZBP9HSwG39kZ+lZhktZmxRnFfCS4zGJBXXLtbe3YVo6oJtX0lnqx2bMfrdO6hdMNbDMytDNdQAmJgnifLdmOSCTUS6jTrguJBxhv7Z4x5kxUv2T1G2b1Z2+N47MsWb+LTJZbBC3k8DdwWSgu4yaOLJ02qZatXyEEQmMTEqBXtgRyr7qLFIdZqtPf0rGze8DQlzalwMsMCFO5DGRMiewNWkuLcG5DIkiYjI/wCZEYr6cgXC9oZu0jt7FJVeweVQqCFKLxwFI7QTyADqiRuwS0eW9vxz9e1Z1ff0uUjW6Zm00bRtktwZewC6lTIkDxUkkUkDuQitwjDkED7SR519Y9kLZTpKuRHvLrkGT4gIAOe3ae5B5rn+psDqmUcIqqB5Ykx58/p2irH66mtfTSlNKU0pTSlNKU0pTSla46rxCXZGUJA4ilozHyRwIrkLc8jzz/HkefzrT9cE9Pv+UIfPO+ZHkYBE1Z0jhL6EiQZWP9WJ+XNVJKyMB2WJAB8d4SX8j8yKX/HHHf8AGvnN1bhkrcK8Zjccc84zx3jtmt/jsMYx+f418syW2Vo/crOrKVZZKxZWU8qwZTYKsrDkMrDhgSCCDwarW7hB3XSw8mVRnzlBJ+BH0pUdv1pZAVlixcoIRQGxyMCqqyqnDOQqqskiqvBVVklCgCRg1K5d1O0oWQyCf5oB7GO55j/eKmVi2eAMdyfriBny86h99bSkhWpxjkntSqyqSwIL8LOB3MFUdxAYhVVuQo4rFbpBLXY4EBQw7QZfPxEkTkRmpFIDAsNwzIOZxA5qEZFpgGZp+O3xwgWLggeTyo9wDgn4k/BHn8xtuAEEkzzABOCeBjAiPrUlsK1xjtG2CQCBAyBxmME/j3rph0DjWLpBsML/AOpg47LHknuNmzZl7iSSTzz8nnn55Ovs/s6NvRunD/427H/k5PPc+Z8+MVyeubdq75/9wgc4AgAZz2rcGt3VWmlKaUppSmlKaUppSmlKwu48Y2ZwWWxaFBJeoWa8RkAMazPGfZZwQwAWUIe7huz94BI41BqrQv6e9aMRctumQTlhA4kxMYgzWdttlxH/AKWB5jHf8Kptkdmb6wYZbeIedI/BnWCeWFhz5cWqQmjIYjgGaOA+SSiga+b6jp/VNMxRtL7zadu8MxVgB4WVkVlAgRkycYBxW/XWaZ4Jcr4ROPIADmI4zNRmd8lCD3YhpJAfuWK7EDyTwQFkjDcg/IIHH54PjWrufaUZg+ldSJks6KsyZgsRjEgkCfLysr7m5Gy8oJEwyzPoNpOcg5AxzUcv3L4+cJcHng9tqmSCpB8c/J8fHHwedau574Z+y3zAJJL2IgeZDY8/ymDVhVRgf49sRHKXB58iOOM/E9qgeWyFqNHaTFmFeQQZ79defI4ACoSSSeBwTyD8c8cVWN8+Iad9vALPbknuPCSO49c5rLZbx/HSWkLHhkjJADwSQOceZrAR7E6p74/4TaW0b7iyGiTJGpPBjofdHb70mWyIq0I0i5EjtX+snC/tgkbhTZ0vSOrdScrp+nEBn2m/dV1trBHiYuArr5shOYE8mo31Oj028vf3MJU212EgkBv6pI+APIjHHWLZ2FO3dq7cwbQ1oJMTg8Vj5oqnH0y2KtGCK0YT2oWje0s0gcorSd5dgCxGvtmh040ul09kAA2rFq0Qs7QyKA8TkgvuMkd/WuRuMHd2EwzMRPMFiR8MQI9KkurlYV+WJA5A58j/AKc+Tx+eB+PzrwmP3x60/fx9AeAfU486pra9Tm+Ns5LdVXd3Q7e9mvj8xma2Al2Nh9y7lE2Mwt3JYuSfLzyYCtGbV+3QS5iv6LFkKt7DWPr45BIkdefmm69qdPcvLqulatlF26lo6S1fvnZZuPaY3SbSgG4yBrPuwyPa3XNw/hi79+s/4PeznWNF0i90L/Ef2c0+ov8AT+m3uqW/abqPR+lAazqWk0eut2enW7fVLxFvT2NU1jWL1K7pb1jqNtdHc2F3u2Nl9J+v+H6nUsdzt3c+FytzM5vATV5sFmbOMr3tvw1Wvyz5kY+GnRryTzTVq0WSatdFitNWtV4LMbRC907rFnXqhFq9bd7l20B7m6yBrAX3jNd92qIN7FArlXDqysoYEDkPbj/DDqHsdqNUR1XovUdDY6f0zqaXE6noLOufT9Xe99ksp09tU9/Vai1Zt2r2quaEX9J7u/bvaa9fsEXT/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAwEBAQAAAAAAAAAAAAgJBQcBAwYCBAr/xAA4EAABBAEDAwIFAgMGBwAAAAABAgMEBREABgcSITEIExQiQVFhMnEVRJEWFySBobEmM0JDUmKC/8QAGwEBAAIDAQEAAAAAAAAAAAAAAAIFAwQGAQf/xAA7EQABAwIEAwYFAgQFBQAAAAABAAIRAyEEEjFBBVFhEyJxgZHwBjKhscFC0QcUI/EkM1Ji4XKCorLS/9oADAMBAAIRAxEAPwD+/jRE0RNETRE0RNETRE0RNETRE0RNETRE0RNETRE0RNETRFwVJBAJAJ8AkZP4A8k/ga8JAMQfIEj1Aj876XRMj74/ft/vr1FzoiZH315IOhHqi4yPuP6jXqJkecjH3zoi50RNETRE0RNETRE0RNEWDtdy7epG1uW93VViUD5jNnRmCPoPkcdSs9+wAGSew741B7202l7yGtGpOg9wT5Iq5uQuQrHdu7ry6hG+lRGJKYm3m6+yTVwmI0brQlSXH5bKOp/pEiRJiodWX1qRj5PbHP4ricPqNo4TFYx4DTTdSqsoUmsDnSXPquaMuneDXvM/KVtU6DS0OfVZTBvdj3ug5b2BG+h053lfk2zyZzO3JbbgXTdbEbJUs2s+XuJTgSQfbd99uCyhZQPbyX3SVfp741X0+IcfxDg2hQwOEo05zk1q2Ne4Ekk9wUabX3gFpgQZkgxsilw5jHBz8RXqXALWMpMGbfvl2cMB0LATcZtztRG69zXTQRb289A6eqV8PZSm0uSCpRwyGVtKQ2rAX7ZGGwekkkY1d4fE4moWitka9oio2lmDCbAlubvazIN7kzNjo1GsbdheZcfmDRaJkQTHhttZcM7ittvvJk1247OJ1IU0pBmuSUrQekjqZlvPtFYICvcCPdwO6u5zmfiKdJw7xZmuR3e8QdADryt4LGAXfK0mLFw0Gpudrbei6ZXLm+UuqRG3RJV0dPuhUWKko6gekFXskIUSQelQyQMgYIJ9GMYdO0+n/wBKWQ8x6/8ACw9lznyGzWyYadwNNdRCfj/hoSZrZPUvpYlLaAQtRSEAqbV26kpOVZ1pYvin8ux5LsgcyabnECJMC5FibmxNt9FmpUhUexpBMkTkEkifHQyL28dIynG3qqnRJb0HkNX8SrEsExrSrhe5aMqbxhyWwx7bEtl0HpKmwiShSfc6FIPSaPAfFLzVqMxjJpNYXMqUgXvdlJzZh3RlALS0zJBNgbHcr8P07AyZcX9oQ2NIDRJkTmnQiBrNpkbP31tffVUxb7bs2pcd8uJLDn+HnsONLKFtSYLpTIYWFDI6kdK0kLbUpCkqPZYXE0sZQZiKJcadQBzS4ZXQRN26g30N1WOa5ji1wII1Bkfdev1sKKaImiJoiaIh7/6f6HOiKDXPOyGNnP191AdkvwrqTPExctxEl+POC1S0lBLYUY3sur6A4pxaVMryQCjFXj6jsOym4Bjw5xa5r2kg6RvAAkySCdFkp0+0JGaCNLTNjpccvqo5tymWclbCF9WDn2VIz3746cJCT3IwAP31WOxVKe0OHYMv+kuFhOgA6mCOe2020qkhriWEwNz1vcb7cgCslHt60dlV73WCCVomKaSrJKs9KWFDAP5wO327RbjsKZAwwaNTBe2Y5kNBJ8Tf6KTqddjj3g6lFpEk2H6ZJsZjp5Bfn/tIzBeceQtxsrISQuQpY6E4SgYCUpwOkJCkoCv28iLsZhcOS+nQl1SQ6XVCB+q2u9ra3vaBkNF72tgtNgYyBpEiBJBk677jyOQO7IMtQdMWK4+lJShwqdWtvKu/SC6UjIOf05VjGTg6N4lhqxGfDU3ukNEueNT9ifFYnUq1OwcWtcJcAwkECxBM2sesamLLFuW0ZDi3HE5bcUFvJbc9kuEHI6lqQ583byUqJ7DIAGMv81hqZD3YZrGNBnI91pBFgQdSQDbSUax74pgyTJmO9a570zYDyXTKvKWUx7TMB5tRXht52WJAC/HyoENI6/8AxORj7+DrEeI4TFDsjhKT2A5wX3sCYklgEmTIEeG6zjC4mlFRhGYiNRIB3kuBm31kWXmJK0Mf8psg4BylspwMkADAwfp+wyBjvrTfUw1FwLMFhwS52gLbAi1tr3ERpM6KZp1T89Z8jZo31Mkl06RIjzkKVvpj42RbrVyHOnT2U1Vr8LSxYz7bTUl2Oy4LJVi2GCtcfqkR0R20SEhTjUhTySPb6uk4cRUp9o1rWNJcMjAQ2bCdSCeRiYELTrsyOAzFxIkzMi55klTrHYAfbVmsKaImiJoiaImiKPXqVrkTtgx3FglEW7j+4R5DUyHOgqwfIPXIbII8FIOQQNVfFmB+GbM2qAGLd1zXNcZ6Ta+vNZsOYrN03N+hB97qCLQ9uNGjqPX7DTbPWoEqWWk+2CSSSSUpHUo9yoEnXOkZcjBMMY1jdzDZAk6k2kk3VmTJJ3cZPJZyKhoIyUAHGAQO3gE57nzk+P8APXne1v1N/JeLCTgyCodOAoZ/SO5I7/cYKsHHnGfxrHVqvaGkRqQZmYjoRqY9CptZJvI+i88pz2FqKEpGekZAwR8oPbBA/P5+utNsgjLMyIveZtfxWXYjYiCOY5fUr4VJcdIQVEg4BGMZzkDOPI89vye2tkNe9p7Rz9dJGluYO6gKbAcwaAeflH2t6rvW4lD8WOlACXC891BOAn2QjAVjABWVYAx3KT+xyUgGHJDiCXGXEFoAjL4OdLoO4B3SpBAm99/A/hY60XleUr6TgJAyQCRnz2PgdWOkg5IyNYKzmucwtIdlc4GdYzNmTY3ynoSF61sDe4E+xH3VkfpmiGLw9t1wjCp8q7sST5UmVbyyyr8AMJaSPPZIPbxrsOFNDcFTA0lxv1Mg6DUQdN1T1/8ANeP9JyjnAAAnrHrrAW/dWKwpoiaImiJoiaItZ8wU67vjzccZnp9+NFbtGOrwpdW+1NKAfoXW2VtgnsCvv27608fTNTDVABJAzaxYXPnytqslFzW1WF2gN41g2P3CrGtZTq621crgoz40Z16O26057YdU0p6P7hbC1lDhR36ElRSlYT8wxrlajiA7s47UUy5macpMOygxe5EaTdW1NoLqec5abnBpdIBjeJEC2k+EaLH0u4JiqmM/aFDUpxltTiGkSkpBKASQlxhKsDJyCAUjAIGdSpu7ShRc9mWo6mxz2jMA1xbLm3JjKSRy5clOqGMqvFIksB7hMEwRMHqJjT6ysfY7nr4+Vvy2mk9RBUsrTgA5AypOEpx37jGB31GpTpOAD3ZLy0nMQTFxadhN+nkAqESBM8gCY2J6XgdTpquWpsKS0h1qWyULAWlXUcEEfT5e/wC48/TOtQuw7CDmaDMjvO2OukcoB1vyU18KmRGzgyms/cdasf0Qf9tZW1abzDXtJkwAbmBPIbIi7auZ6HpEpppDQCC4pLpASSCSVBvsPv37+TqbjlbnM5dyBMATJPICLnRQNOo8w0A3lokSdrACSbmxtF5XTZPtJw4guOdYDiAlpWHOsZQlKlEABRKQFDz1Z8dzqsaDmlrnSZYQHRck7eI1WQiM0lrS2ZDiGm0yANyIggK3HjCgVtfj7Z9C4pC3a2grmXloBCVvrYS++oBXzYLjqvIHcHAAxru8LTbSoUmtEdxhcJJ7xY0m5/FlQPcXuc43LiTcRr028Nl7zWwopoiaImiJoiaIsZdRxKqLOMR1CTXTmCnGch2K8jH18kj/ADxqL25mPaY7zXC9xcEXC9Go8R91U8y6zWykh5eFy0t16QU91OwkyVnJwMdvcGSRkjA8jXHhomYktlk8w1xHpIkT91dEZqTRMQ4uM7iYi1pPW3mvqc8FE46SMZwQSckd/wCpx5A8d/A1F7tReZ15+PqotgEWEcvfqsV8E1KCg400oYBIUhKiE4yCRjPSAO2e2P21FuYyATpv5enisj9Be06fn6LHWsOzam1ESqixlwpKX3JcpQISwhvpCEtgZR85PdRWMYHYgEaODzVptFJppkHNUdMNMgZQADJIkjqOqlT7PsnVKjnAzDGg3JyyJE3vAgTafLT+yebOPt8cocmcQQHLmu37xY9DF5U7grFUrltXy2WlqvNttuvLetaOM8+xHcsEttJWZEeShsQ5DDrmVzOzAJaMpOw08bAHl+6h3nHM10DSDrI1Mi1/UaGFuiRAgyIq2XkNqQtCkLB7goKVJV3/AMzjGf2yNRBY8OY5pLHNc1wEaOtabbydOhm6B1Sk9lRrrscC251E69OnO4XkalmY5b7P24lapKEy48F19xRLjvTawGISfr/LPOBROCfZTg+SZ4LDdi2jRLnVGtcAHVHF7i0k/MXXJEhtyYAAEALzFPFU1q2XKCZDYFi5neIAtBcHO5mQTdXdNNoabQ0gdKG0pbQPslsBCR4H/SkfTXXtAAAAgC2kfLbTyt0VIuzXqJoiaImiJoiaIuFDIIIyD2I+4PYj+mdCJ1RVC7yZ/h1pNYdA6q3dcpnuRkA2EpkH7khLozgEkAZBOuRe3JUqNvao/WBq4kadD+1ldUb4doAnuARqdp9QDaYANuvHtqXg+c4PbOfuOwH7a13/ADHy+wUWuFnAg63FxyOnuVoTmnmCj4KgxZMiotN1by3WZkbZOy9vJgv7h3DLjIr4DRkSJaCKykclSEsTrhxLwFpYQYMeLNmSG4x2cPT7Q2cAGtFzEEjaTaRymdZGiiB3i4n5rxsJM+a0lO5C9cxZZsWOJ+PY1ZEaTKh7OVfttXEdpLL7TLNtdTpn+Ku1F1Cn48BmNXRXHRGacedjiQcrmgCM0yDe3d22PncLIADMug+WnP3yUYOVtx2XNm8dkS26a39Mvrn2Aw/b8XzL9Df9lOVYTHvzZfHkG/Q8IG8aWwgqchN7cspCLd+CbIVkyxZZsmIEWBzLuJfhqh7Oq1olzADAIA/SXFpcXWyybLI2AIBBuT1vruVMD04epiu5+2lYKlVbuy+T9kzRt/lLjmatxU/au4mA4y4/ELoQ5N23ZvMvOVFiUIdb6HK6yai2MZxpejUYabw1uQ0XTkIdJMkgC1r3BvrZS9+/f5UruLo5suV+PoqgFId3bUKcGf8AsMyUvujt2PUlvsVA9xnW1hTmxOGYbf1W33s11o673WriG5aTyDNo8nG9+g206K5QeB+e/wDXvrrlUrnRE0RNETRE0RNEXB7AkecHGvDofA+9/sUVUHNsVUfenIUJsdLiNwSpkdHSrsHH2JrfSMYz0LOFDII8DJ7cpipbiqzNO/uJ1aI0tcRobHXkrnCwaTJNogxtYctFgocttTTa1gJBQCcqHY9OVEqWAAEg9RJICQO57HWm5ze0LZ71rQeQOumnVGU2tAZcEF1tdSTrHIzqoT7MiReUfWTz1u25bccZ9PY474w29Alv+7GbudwbIicgsX0SIkJjtliNuS1SmWoLlps0R8rebaSiFsUnupsIaYLnF1xIgWnUbkj+15OaABHMzJ9IEbflTFkxWnELKsKCkqBCkpKSkDHQUkYKfwc+T5Bxp2k2nW2ms+S8yO5fUfuooeq7jmt5G4b3UhTPt7o2TF/vB2JdsYZtaHdmzVt7hgO1UwELjGwNYayU24pUKQzIQuWw4uLGcY8nKQS4hpLQ4ScuUuAcYHIEmReQDsFNjYuRBv8Abxj8/Ras44422lyzuHiP1jVVhf7K3rujj2vd3rWUTUSJUciJejiMHNzR3EqeYXFnwZK2H4xcfsqZ2DDtEqmwY9kivq13MNWhLcoe4CWy9omW5X7WIO+t7qf/AD7t/ZWT+m2F/E+atogp62oSbixWrH6DEqJa2iSe+PiPZSM+CrI+ut7hGarjKQMFtMF4ixGUQCZJnXSL9NtTGkijAi7hE8/7SfLbVW1+NdmqpNETRE0RNETRE0RcHuCPuDrw6GOSGwJ5KtD1Fw/hOV75YT0omwqaYBjAJcrWWXiewHzOsuZ8/XPfOuV4r3cRUc2GlzGuka5gMpJBmDLfoFaYIk04JmCRtAjLt9b81Bv1NSZ8f078xv1T8lqbF2NNnxVQXFty3F09jWWy4kZbSkrDtizAdqikEe6iauO5lt1xKqZj3do1xcZJDXOtJaYBBsLRHLTVbkCZ3iJ6KFPDO+n+Gtw8ecq72kWo4y9RXCXFtbvDf75k2dZQcxcX1LOy6+Tut4F6fDG69soiRmrV4SGWpUOUzYBDiWn0WlMZ87RBc1xLB+pzS49xg3cNSOV55iAdQD484jaDorWay5oripj2ddbVk6smR1SY1rDsob0B+KlSkOyGpiHzGXGSULSt0Oe2kpVlQA7V1V7g/KxxBbYxF3C9pBn6aaFFX56iOfa3flPuzgL02SYvJnLO9Km12dLu6SUl7Y/Gse8grgW9/undLIcirmVFZLXIbrKJU+wiSXI0mcqCGktyMtNldze0rFzaLSSQ4tzVA3ZrdxmLdxaSIiz8fRSP2Jsqr442Js7j2iUpdPsra1JtatccHS4/Hpq5mD8Y8kFXS/PdacnyUgq6ZEl0dSsdRrHPdUc57vmc4k+Vh/4gKRBgOJBn3f8APVTN9HcAyuULWV05TWbSnudf0S7Kn1sVAzg91NOPY8HCT+ddBwAf4l79hRLTz1kf+p+i0Mc4BjG7uJI8GwDv1tA5yrONdeqxNETRE0RNETRE0RNF4RII5iFXt6sYLrW+q6Sy6WF2W02kNPhtDhZlMTLKOl0IWFNuFkLjuhDiS2vpCFpUkqB5f4gA7SgI+ZhBi0w5xvGsz4geKssC6zmRcCZnUco12J1/KoW5N5R5e9Pe2uQeOvUG7a8gcZb0qN51ex+ZYcVcmXSS7eptZNBEv3Y7bjy49XbmuQ9UW4XfVUBL02qvNyU9U21Iq6dKjWaXUyWVWubFMnMHAakOOUaCSIiSRrc7/v3ovy8EerP007E9JXHe2eY977aesUbfutvbl2J8K7uy1eluXt2lips6OrjznIU25qZDM6CzP+BcLchbkd5lbQdTsOZUBlsh0knVsazBGsG2ul916N9dNvrPRaZoaDgjlfdtNQcV+ijm3cPH0++guT5l5vfcWx9kUFa6+wuXuFqBWyr+LaUrTRTHr9uT9w1lamSqKuwhtR48tpMKroa6ajM2Vxb/AE2kyBa82uRG97KTm5Rznp4b6q3yj2Zs3YVUzQbK27TbYqI6A21X00RqFHShIUpIUlGSoF0qkqT1Bn4p5+UltL77zjleXPd87i4iOcDwEwN9IUF+0BQ/Uvqz+knGT2zgYPftg5/OtcxmI6m3009hSBjUT0PPn4qa/opg9VvyHZFIAYhUMFKseTJk2chaQR9AIjZIP/qR4OOm+GxLaxImwEkf7jImOUWm3K6rsfrS2vUMcvki32VgWupVcmiJoiaImiJoiaImiKEXq7hET9iWABw5HvYTisdstLrpDQJx5w48oZOBgkeTnm/iGQzDujd4k6ScsD7rdwX+Y636Z9J9+ShDf7co91VFjt/cdVAu6S3iqhWNVZRm5cKbGX3LT8d1Km19KwHGV462XUpdaUhYzrl21XtcHNgFpkGFZqrrffp13B6St9O888R7X2lyTxzXQI0fcOzd8VMFV9sjbsN9+VIe27vKHVyLOviVvxDj0e8tYN60zCbRW7iCI7ES1RZU8UMWzsXE065MUy05Q8wQZzE/pvYiLgdSsa4r37trlPYFDvXacWwrKO0bloj1NlDYhy6edDlPRLOucYiOO1i3INg3JjrmVT8qtmrSqREkvNOdRrqofRqOZUy5h02HWTN/3hegE6Doo78xMboqd97gXU8l8iNpVw5yXyNX7ah37MWhqL7a7MCrpYkWqh16X3aqQZLti8zLXPckWoUr4hLXRE1Om9rqZJgTVY0v0hh+dwmflMDSL3naYp2kz5Rb7+/ArwcLkDmWz5g4liWDNtU0EBrcm2d10lX8TL2ZvSVOTtpbO65tmrbcG6N5tWpW9Yxq1+TD2vDdn2slbVk+qNKrITTLKoGXMKhex98xAzNDeWVzYcdDMEETCiWkEgAx9/3v7sr1/RZCDe198WJSQqVuaLDBIxlEKpjvefr0uT3B4GCCNdX8OiMLWMWNaQefdEx0n6ztCqsc7NWgxLQBpGwAn0U09dAtJNETRE0RNETRE0RNEUUfVnAU9tLbFghsqMLcamHFgKIbam1swDqIBAC32GEDOMqUkAk4GqH4gp5sGx8T2dVsmYgOtpvcD+0rawjstXWxabe79fJQOHYjP0I1xqt4MTFvYXxY2UGnpre4suoV1VV2NnYqQz8S5/DoEN6XOCIn8yoxGnkiN/Nk/DkEO4ITmaAYcT3SDEEbzaP+YXijpF9TPp2pNuRVUG54yaWFFb+Hp9ubS3A29VRXUmT7a6MVEJ2IG1SEKkoabcUX5aXE+/7rrycz8Jiajgcskxcvbv8A90ctPO6k6oxhHzX1IaTIBA2B2PMWI2Ftm7U3ltfkajRujazhm1659xQrlTapyBNal0k92vt691E1gSA1HsGVtksuO1s3pRLgvzIjrEp3VqU6lF+V4IcIMZpbBnkS0zf2Fla4OEt00uI01/vuFllhftrbC1oSpPSpIUpKCkZKUqQFBJSg4KAoYSe6QCc6NcSbnbp0Xqsr9JFeYnEzctSChVruO+mAlPSVtMyUQGl57FQUiKCknt04x2895wJmXAU3RBqOc43JkzEwdLDQeKoMWQa740FuW597KT+rhayaImiJoiaImiJoiaItCepSN8TxNeef8POoZRKSQpIYtoylEEdx2JBI+hPjVTxsA8Prz+nI4b3zRa4g9ZWxhCBXaCJkEebgQD1g7KtToX2KH1YGf1BLgP27lIWr/wCl5P1OuBc7UAmfe8+9FfN+Uef3K/Q2iQoFCnI60OJKChyIFoUgjBStBe6HEqBKVJUnCgSFJIONQkyDJkaGTI8DsvYHIegXU/FeJBWiuUUgAH+Htk4QnoTglRPyIPQjx0J+VOE9teuEawZ3vP3jrv8AZei2lvCyxEht9ptKEORmm0gIDbMQNIASEoSlCEOBAShKUpQAkBKUhIHSkDUfHyRYZ8LAUXX3CCCSEhLaR2PYdCesDt9Vn7Zx21JpAMnl+yK270+M/D8McdNdJT/w3FdIIIPU+9JdUSD3ySrOTknySfOvo3CwBgMKQBJpCTGtyuexJmvVOgzRGwjl4/Vbl1YLAmiJoiaImiJoiaImiLXPLe15+8+Od27bqm2XLSzqHm6wSHQw0LBtbb0RSnihwNFLrYKVqQpIVjqGCSNbGUXYjC16LbOqUy0eNiPWFOk4NqMc6YBBMawqwrbjblPbRULjZd02hBIL6ID8uLjP6xMq/j4vSrGUF1xo5JCm0nCRwGK4bjaJLhh3PaCBZrwIFgSQ0gTA8ZV5TxNBwDe0AME94ho8LnX6EXkLzIfsGsoerFIWCQpKpTaFgjAPU242haTn6EZ79xqvLa7SQcNWJaO8BlEXie8QQ2dJG8LOHsIkPaRzDhHrK6nZ8xGQaxYOD/ORfOBgHv2Bz3P015/UOlCqbxdzAPMyY68hdeyOY9VhpM2a7ltEBPWtWEoEtpxaiDkhKEIKlkEjIb6j58DzkbSrun/Dvtu17KkeLWd6+1upgIXNAkuAHMkALL1fFnLu9krj7b2bbLbfQptFi/Berq9v3UdAdXYWwiRihoqClKiCY4MHpZUcDW7h+GY7ERlw9RoJs9wyNykGXEuAkTDS1sm5OgWKpisPTaTnzPbEtBBBPKQdNxrKuK2XSubc2jtiheQwh+noKitkJjKKo/xMOAwxKLKilBW2uSh1aVlCSsKCilOekfQcPSNGjTpkyWU2MPi1omOkzyXPvOZznAQHOc6P+ozrr6r02s6ivlRIGQM9x/TPc4+uB9PrrwmPenVPfj0B0B6m3NQ1lepzfG2bLdUXd3B295MevuLmNQO7Gp9y7lD1ZSzbKrcft33KCM2ZU+XARMqv4K1YRZ1NI+PbcDiG47/NO49icPUrNxXCsW5oq1WUjhKVeuclGo+k41SaTQDUcwOo9mHMfSzVMw/pir9+o/we+HOMYLhFbgX8R/hzD4ivw/htbilP4m4jwfhQGM4lhMHjqdHh1OnxSsRTw9DFOoYxvEquFrUOI024OpkL31aGy+J+f6fk6FXZ27ueltZlzd0D0d6iuZNZHnbfZiqnuv3Ir2YcGO4+89GjNWSo00SIz0aVHYktqaG9w7jFHHtYRSrU3vqVaQHY1XMDqAb2jnVezaxgzuLA15a8Pa5rmhwIHIfHH8MOIfB2IxRHFeC8RwNDh/DOJsqM4ngKOOfh+LvrfylFnD3Yp9fFYilRp0q2KqYEV8J2denWw1avQIqn/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEFAQEBAQAAAAAAAAAAAAgEBQYHCQMBAgr/xAA6EAABAwMEAQMDAgIIBgMAAAABAgMEBQYRAAcSITEIE0EUIlEVYSMyCSRScYGRobEWM0JDwdFiovH/xAAcAQEAAgMBAQEAAAAAAAAAAAAABQYDBAcCAQj/xAA6EQABAwMDAwMCAgkDBAMAAAABAgMRAAQhBRIxIkFRBhNxYYEHMhQVI0JSkaGx8DNywUNTYvFzotH/2gAMAwEAAhEDEQA/AP7+NKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlfCQMk/HnonGO+8ftoSACSYAySeAPJr4SBz/nx5rBbg3ItC22nnKlVcJYx7qokWVOS2SVghxcZlxpvgW1BwuOICFFKSQpQGq1q/qzRNEbW9fXSktN7d6mWXrgp3FQB2tIUSJSeoHaByoYndt9OvbtSQw1JUQAlakN7ieP9RSSP8xgisKPqC22DKZH6tLUwrALqaY+r28gEe4gKKk+R1xJ7Hgkaqz34t+jmmRcG6vVW+5CS+3p77jaSvspKT7qSnIUCgKCkkQakU+mtYKoNsgHPNw0Bj6xtz/vPxOKyOJvHtpLEYJu2nMrkhHtJlpkRCVL8JWZDKENrz5SpY4jsnGDqUt/xL9D3BYSPUWntKuEgtJuVrtlE90qDyEBtQ7hahBxJrCvQdXSFqFg+tLZIUWgl2I/+NSiR4IGe1VtL3Iturvzo0B56S9Cc44S2kIktZwZMZwLKVMA4ALntuHIPt8SDqY0b1PpWuv3ltpz/vLsVKDignocbRhTzSkkpUiZkBW5I6oKQTWpc2FzaIbW+2Ww5MAggpIjpIMEzzIEdiZGcsZrNMeiLmmWyzHax7633ENfTkgkJe5qCUKIBIySlWMpUod6m13Nu22p1x5pttH5luLS2lOQBJWUgSSAPJIAma1UoUshKUqUozASkqJgSYABOAM1+WK9RJMgRY9Xpr8koS6GGpsdx0trHJCw2lwqKVJ7BA8awI1LT3XPaavbV1wjcENvtrVGOyVGORE8yK9qZeSCpTLqQOSptYA+SQBVNWLnodDbSuoT2m1uEhmO2S9KeIISQ2w0FOHBIBKglAOApQJGvtxqFnage/cIbKsAZWon4QFmcjnyJo2w67OxBIHJwAMTkkgcZ5rHoW5FuS6oxSXFz4EmWttqEqo06RGjznnCClmNJCXGVuAEcwpSEJUfaKveBQNP9d2abpm0dL7Lj8BlTls97LyzBDaH0oLXuEGdu4iIzukDKbN72i6ktuJSCpQbWlRQgRK1JncBJjjnxzWwNTAIORWrTX2lNKU0pTSlU0tEhbCkxXEtPHHFaxlIGfuHg4JHQOOjpStIXPVHUT3I0+q1aM/DPBbTC1oivtrTkZSjiHWXULOVYSrHWRg6peuanpqbxDV5falaFhRUWrYAMuoMSFkSpbKymDIB6VhPmt+zauFNKLbFu8JIKnD15kCQRH+3bMRntWuqt+iVJ5Dy5qqa62hCWHmy7HajutuoWh7gG3EqGGylTKk8FJ8AKA1W9RX6Q1FbaxrBsHGh+zdQlxKULCioOQUqC1Hdt2KATGZ5reY/WbKIXapeTBlBWDuRAG0x1ROYyZ+SKsNcsu2qxzfj3tSYkh52LJmOFhSn5D8VstJWlaUtONAp4pUhtSeRRnrmvMTrGj+ldWZ2MesLa1dWptx902iFqdW1CElRBbCQUJCTiYHBrfs73UbQFS7B55vq2NoeU3tK1SZEQQFSQZkYHOa13K28gpU37d02+4GwtKnfpHebhUsrStSXXnuC2wSkeyW1q8LWU9ClXvoTRnQ0EesNBdKCsJXcWB9zaTuEwXEkg4xBxJJzUmjXrtsk/q68SCQoAXGEqjMbQk8z+ZSgRkZzWcUaBTqSyyIF8yaa8gcVJgxY5YX2CoFp8OFaFqBISpSinJAIOAm46VpGi6Yyymx9cL055pASoWjdv7CldxscTuU2oDaZVlJMpJioi61C6u1L9zSDdomUe+4d4MEZ2hSQfBB8YiIqqolyspbZkXTBmtNEgJfpTCXC4ApKJClIlMJKmwolIIJSkkISnvW3qNqxqaW0XHrXT7tCUqBZc0plXuuKBQlSlJfbBUkHgiByMmRjYuFWgKmtIuGVkkki4JSJxGzYokfwkEEHng15x7TiMJS5+rRXF/ctIj09hni6rtS0q+qWpoKWSVFP38jyBJ1qM+l7EKSr9d2wA2q2N6faskFIABSoXLikiMDHfma2Fau6UkKslZPUhxxREZkFJaGePgSBg1doUCHTXC87VJBUpSV4QptRUoHBUo4cUpeSclz7jk/eRy1LWdlolkoFWv3CSCoqDaWzuI7EkknnjjJAzNazlzcOJCEWaAkxKQSoGYIGQmBGOY+wrN6BUhXqrT4FO/izIrn1TDjzR9tBjfclySW0qRwQBjJTxU4sdFShq56ZqGi3zjdna3VxduNj3YWgpTCMguftASJJgAKSe4ioh9q7YUsraDKHCZMgEz26JE4PTuzziYqRsVMhMdpMpaHJAQPeW2OKFL7yUpwMD9sD+4atAAGBWnXvr7SmlKaUppSmlKjxu5GCKvHkJ+0v05HYUU/cy88g9ggD7eHXnwMkYGuO/iShIdYcUglarQQQrapJStf7wBJkxjHjM1ZtBcG0oUgKCXSZMHCkpxBBOInwTkZqOMxKnM+1JX5VkB1SQSVHJGeWVf7+esa/OOoqvFLJafe9skpUhLpICpJnIWQYgcDjmr3b2zSkpcUgFRIUMJwIHTMZgk5q0NxJSl8USF5OeOV5+D5yAP2+NRoavFJgvOifK88+SEj+lbRtmT1Rz+5iPHEY8/8Auv07SagcqMlffgFYxkddZzjx3gf6nXhTdx+X9IeSUmCQmeJByBBz3HPbFeS1bQAW0gjEpQuTGDJCoP8AIfFeSKXNThSn3CQc4ByOs9H7QDkfGPjwe9Am7JCRcvqkjIWEwTgchXHkkRntXz2rVAUQ20AQSoqB3AAZKZXOB3zBj6VVsxp7TgUl5QTlP4z0TnOB8fAwCD++pC3a1BIMXLuSCFFQWUlJCuUgAzEDIitZabMpJCUgiBuSDuEYwqZ4OcGczV7XUJUNpHvyy2lOAFEkdfHIH7vkZ/PzgnU8dQuLK3L7946ncpAUpRSSCqQlI6SSCQD4AkmtQ2rNyohtG7O4EqOQMGQU9ie4wO9fmZNdLWTIUQeJB5cc9Z6+R33+3n4zrbS/cxuNw8d4CsqEZE9MJGDOCORBxXkWjYwhAlODKhyMYkCcg4+0VuT0/tl+sXBMCyoR6fGjqyoqCVS5XugAqJIURDVgfjx8469+FSXHLrVX1bobatmxuJOXXFqMFWRAQBAHVOVDbBrfqUbW7ZPcuLIG3bwmCYjIMxPExntUp9duqo00pTSlNKU0pTSlaV3dh5Zo8lOSn+vRl5BIBWGXWwSAQCcO8R14zg4J1y/8RrV123sXkJOS+06s8J3bCiTIIMgxJIjt3qe0FQDziJAwFgcEkBXH0mJ+eRUQnGn21PB1R7fcKR8JBUcJCsAnGCMDIHyTyGPzUmzfbFx7pCj7zpkAjEx3wOJmYyMdq6Sh5G1tKVJV0IiDOSkSMeDI+P51UMtuKSspPEhOBj+bOCP8CceT8nIB61ictXPbUoDESJExB7wQYwZjsc4r2FALSVkJ3cfXtjn+tX2n+5JihRQrk3lLgP8AMCk9k5ycnsnz869WrSrq2KgQFNK9vZkdSZBIEHpMGMjxPjHdOJZWAgyDklWc/SI/z5FVYiufdkAccZP4Bz+2ceM9ecDzjW5b2YdKgttCEgcqEZzHJj6eZ4IzWmtzcRugEDtPH3n+VercVH3kpGcD+UnJx2okKGPHnABOD11rb/RQ2AhAkc9MRkwSBJ7DJ+maxylUiefsf6/FWuosoeacbJBGFcVkZwUkHzno9YBB/tftr3c2zNxblpxAUraMRBUpJkAyIknBwMcRNe7dZZfTBglJKZxKTAJIxjP84rF5rylxwEkgpSkEAkjwUlWMDrok9Y/bHnCyh0LQ25hKhCewSEACBmBAKRBzAHzWZbe2FJlXJMweII4A5zUmPTZEdNCuKqOIWkTKwxEQtaSEuJp8QOKUkn+cJXNWgqGQFBSCeQUE9/8Awts1taXf3RAKbm9bQhe0gqTbtdUTHSFuqEwOoGMc0j1S8pd2w2tICm2SSB+Ye4oxukmAYBGOMmOaktrqtVemlKaUppSmlKaUrXm5zBetd1YzliZCcBAJOFPpaV4+ODiuR+B3g41U/WrPven7oyB7a2VbuCkF1CCU4JmFRjI57SJTRlBN+0FE7FpWlQAncCmQMdQyJxzwTFQnnIkCVNb+pcwJCyhOQsNgqSpIHJJKfJHWBg5x5Gvy87brbVdj31lIdX0nIIISSDJJgkmQSc94iumMIQGmVhKcITESAeR+6Rye8GvCMZLayFSCpK+iShBAz+xTg/CSolOBk4OcajUl8tke5EhYB2NmeogCCkwI78juea3HEtlLKw3KkqO4BSsAqUJkn+EgwO+M19odTqLVVmwZDzSmShL0c+y2kpRnBBWj+Y/IygcU45dnULpt5qrWrX9m84hTQbC7UoZbawPzS4JDhBncop58AgHYvLe1es27llBDiVFpyVqI3dlAExBIjnHiarX6vU3JP00IsFskclFlJyCQkAYUkDBJwTn7sZBOBrG/r2ru3yrWzNshCSOtTG8nqAIjciCR9DOIIya1UWlsGfdud0kEJ2K5JGN0kAdWCeM54EedXeupiA64ymMD7ai259EoNqIIH2qUvCggKClJTxIGQeGRykbm41lNstYdaQ6GwpK02xI3SBBSreCY8E4kgCIPuza0pToTcB6CRlt0DaJzzMyAR8TGRNYLQLouSRPVTKyy0r3UuFMlmMG0IUkcgnipSjxKcEq6Uk5yfOqr6f8AUfqF/Vzp+ptJuGYcm6aZ9sJKYgBASNyYVO4yZTtByRUrqmlaUyyb2xddhIAS064D0qztmeo7gDMnkzIAq5PPOc1hTiuJUQQnCc94/wCkAnP75/bHeuigOuAAqkEpM4SRnkEAEEfQjxNRCdhbTvELM7hkgTEDGDGRI5qemz0QQ9uLWQAcvwDNVnGSqY+6+VE47Kuee8q/OPA/VXo1n2PTOjoyVG0S4omZUpxSllRnuZn6cCAK5RrThc1S9J4S7sHVuwhKUkDwJBgD5gE1szVnqLppSmlKaUppSmlKxC/WQ9aNcHy3E99PWfuYdbdHfxnhjyDjOoH1MgL0TUQYhNupZ3CR0KQQY8pOQexEjNb+mK239sSCR7kEDuCCII7j6VCGUwtupVBah9jrwcbUQB9ikIwP8FA/5f3a/Ljjay/eIX3UVoKjIUhSAQRyQMEZHbjNdWbILLIAA2tgHjJClGcfI+uKtbmULKBgkE/nx5B/y8/7aisBXAABOABH1xxzn5rZTlInPz81Z33n49eoy2hzD7q4b6EAEhLrfJoqByTlaej1hOEgdDEFfOOM6vpDg6GHHHrd8kEfs1occSZBgpCk5BnmRW6whtem3yXFbShanEKgmAF5SIyJSDEDkx84JM9RewlNrkygu7ubfmr0yR9PU4sG4odU/SJaAS7FrM2kmbT6LKjpPuSY1WmQZENv+JLQw394mjo1444t86feN7jKVhgIUpvJmCUrVPhIJ7ROKiXri2IS2X2lpIMJCwpCZxnlKZ/tk4ioTeo2qbgbH7oM+urY+qy96Np69RaZa2/e3NvXExckZ+zKUUop95bcPUyVLpMlVAU45NcgNOPexKfkuNvJj1d9SbxpLVlqmnPaDepRa3re57T7l0FtwLKepl5JAKwqIx0gFXCoqEuGnmHRdsq922Kh7iUL3NNpGAQMJCgSncB357VOjbzcewd1rIoG5+29cg3JaN201qpUStQ1cg4y6AXosppY92BVIEgqi1SmSkolQJjTrD7YwlTlOf09zSbty2ftUsXDIg7QkkpX+8l2Nyg4BIkiQYPFTbLyrtAUlxDjPSTtBCd4BEAHGMnuCYIMRHtOmYUsn45nIPeUpJB7B845YGM4/wANZWT+0QOAUqkdvy447iceD4rM4ABwO5OOeCf55rpvZEUQrPtmKAR7NCpacEYwTEaWevgnlk/+9frnRWwzpOnNDhFjaifMtJP8sznOa47eqKry6UTJNw6f/ur54/pxWUalK1qaUppSmlKaUppSrHcrH1FArLOCfcpc5IA7OfYURj98j/TPxqP1ZBc0y/bEyq1fACQCr8h4B5rNbq23DCowHWycwMLTyTxzP2qCa31KSFLIPIJJPQOCAoHzj/8AfI1+W7tsBRWCTmCIwABzP0MpPYEHvgdXZQjahW8ScgY8kREz/fNWCW8lLilDsAkYwScD5wOyPBwTjoEA96rbrSlSClY6pmCO89xxH9KkUflH3/ua5nb8C5t/t7JvpsoE6pUOyrdosGv7mVKLJVBdrqKjCYks0ioSoamKpIordPMZkQA+zSbhuG42mqqqVFosinSbdpyLHTdLRql2wxdXYcJsEuNBxTC0HpW2CRCvc6l9kt5wJqKuGXrh5du0stpBKnilUGFGYMn95JBgwCrAFbVV6RNhItJh0k7VUiXApkdpuO/OqFS+vCi06hcyRMi1OM7+rB5aX48mAmA3BdEduA3HaYjiPDDWtSedKzduhbitykhG1tJCgVbUlJSlMZXOCQZwc506bapQEllJKZggkknmSIA+AJ/lWkL89P8AeXp9pdZ3s9LdWuBuRApcuvX/ALF3ZW5VybfboWo0zJmVeiIpdQXIeplwfo/NulVKGUVdNRShwz57L82mS7Paala6lts9Z2rWShqxv2UJZuLR5SkpbcWpKUIU2lWSR1KTuSvpUa1n7VxkFy36WtqveaJKUrRBEbQDJUSD54P7uNBWtckz0u3VaW+2zFLrNwej31Pu0up3LYlOYelStr9wq/zEebBhMe4iE9MqbcyhNPsoaiVqW2mgVdMSsNUaTVc902jWPf07UXUW+t6SFNMXCiAi9ZAJC17oQVLQASZK0jyJIxWoXae24wFOWr3StASSW3D1H8oO0ICSCTAEg8qg9ZmZgnvQkpStInOxE+280uO82Jhaw28y7hxl5Ad4vMLw4y6lTTmFJUNVOxYl9m2ypKrhKFFAnCnADtgkFJ7eQR8VLXCtralgYS24rOAAEgiSOBH0rr5TmDFgQ45/7EWMz4x/yY7TRwPxlGv14wgNtpbSClKEoQlJ5SlCEpAP2FcZUrcpSvKiRmQZM4+kmq3WWvNNKU0pTSlNKU0pXhKa9+M+zjPusvN4/PuNqRj/AO2sbqA42tBBIW2tBAwYWkgx9eAK+pO1QVxBBk8CDOa57Tv4CpDZHbTrjBHwCh5TZzn46/w68Y1+XtTYU2t1rbtWlx1kpxG5K1SMEgnnMwTXVrZQWm3UDIUhsyZEyjd34ycTAA+1aO3j3Ut/ZyxavuDdDVSk0ejvQ2JLNKbhOTVmfIEZpSP1KoUuElDYC3HFOzUKPFLbKHXnW2zEMWTt5dC1b2pcVJlZhKQlO4kwFEwOwySfmpBbvtIKzJSkSQI48/AmTUI/SVcUOu70es+rLMkVat7r2BdlCaqjJjzxtZdW1VuVizXYrSisIgPy5NSfmhh50NVR1ESWr3YcVKZTWWijTtFTA2MMPtO7D0C4RcLbUCY3KO1IhXBBJHOMFoQX7okELWsKAMlWyMCcgRJwDwAanoJKTltxsLT7Z5DAKTk9pUFAgj8+egCR2NU9wpQQDPUDxMkcEAgY55PmpOAAd2D2+v071UyUKfivJ6SVxX0YPHiQ4y4gAgkJ8EjvoeThOdbzG8ltQO3qQEIOVlW4BJCxjJIgHxEZisK1JAIMHAkKEjJgT2+5iOTgTUB/QKtT+wlUnwHn12rUN5N33LHQ6pamk2nDuFmkx3aUpXEs0ORVKdVTTIaeTcQMyUMLUw4hKJv1CvbqgQUqS8i0shclQO7eULJJP/cKVALCZVtjcBOcFlBZWREB9wJjHSYiB3/LBI7jME1Nm14/6he1qU9LY4y6/SWePFWFH69kAEHAGQk/cftV2OwdetAZTcaxpzKVdLl5bpUIMlHupJ2mOkgeex+hrFqjntafeOSAEsL5BOTAH9zyfma6/D/yf9Sdfqwd/qT/AEMf2Fcer7r7SmlKaUppSmlKaUof/X+//nSnFc79xZtOtZ26qlV5sem0qiyapMqU+WsNx4cOK646684vGEgIPFCUhSnFqQ22lTjiUn82eoLZ0aheNNp3OC+uG0pRBlZcMBO4AGR/EB3Hiem6a6FWdo6tR2+0gkmAYCduQMdpgT25Nc+PWVWbYv70Zbz3VbdRpN2WyNtqpd1LqlInNTqXPiUlpD8yZGmxlrbcVBpb86UW0n3o8mO2h5tCgRqH0tDzOsMJcSUue6WVhQhSZTsVgpmQJ7QcSQM1JvKSu2dUkggtrgiMEHnxiCeaj/R7I3daszYD1N7LuQ6rfqPTtYlobo7Y1PjGpW5NIhUal1CO7Tn1LZ+gu2hTW5UaC4X2PrIzhYQr69qIhUg5cWDj2oaLqgU3a/pjjtndgqStp4rV7iVAJILah8/xZNeFNuISm7t3UFZaQHGVGfcAR4AJKvI6cd8VksP+kFsSm04C8tl/Urbt2CW5TJloxtnLpuaQ3Vk8QmKxUoMaLFcYyeEudMRTo9LfalRqgpp6Mv3I8+ln1mW7yycYXGx925Q2mCdplESPO1JVuzwqBXsakgtpLrTwUAd2xsdffpJVAPABMj7A171mV6p/VVCNtxLdl+mHZOuxEtVuuTKu9J3luWivBX1cCOx+iw4dsU2v015AgKoUqbOS1JU/V6/Akw1W7IkLZnSNHJUtTeqXzYBZaCdlqy4EnJVJUsoJ3CW9uBBOK13FXN4kAI9hpRMmYcWiMBZ2nxwkQSTJiKmzZVi2pt1Y1sWBZ1ObpFrWbRINu0GnJUpRj0+CggKdecJW9LmSFvz5z6vulVCXKlL4reI1BXTLl687cPOqLzqy44QSRuIyATnanASTGAZipFpAZbQkGUpSEp+g5H/uZOJ+mxtpKeJe7FnNBPIM11mYR2QRAQ5JUrJT3wKByHgYxnGTqw+iWAv1JpqAFH23wsiJENBRlQnGUgggc5IqM152NKvIkbm9uAOVKSB3wBJ+Ow8dSx4GfOBnX6X5rlNfdKU0pTSlNKU0pTSlfD2D/cdfDwfg0qCW8lu0iq1e8qDXYEeqUivOSY1TpsxCnIk6DUWELejyUIW2sMuhZSShxC09KbWhQCk8F9WoNvr94pJKSu4C0lICChSgFhSZkE8yYyZOOR0PRiF6bbhQkFKkqEzICiOTx2nBj+tcIvUZ6Zd5/TzZu5h9Pjsq+9i9wKLXKVuJtZNakVauUikXDHchVOfDpzDjBuE06G/IVCrlNMW5suuxLgi3Cmov1JjBa3tpqVxbNXyW2rxp5K27xCQ2HFgT1LBVODtKSoiRiOBtFh62Q44ySW3id4USQAMEwZ4jgAA5ODJGF7G+rz1AVDbOzNodkPTjO3Qu+z7cjwq7uDV7rt9dkpalTJzcKqzada9Vk3BRGUIUy+z9dEk0+elKYcJ10okLbX2iact9+7ur4MtOHqbQDvUdwMJWZ3kzkJCJGQTgV7ZvHUtpbYt0vrSAVLUoAlJkbgnkSQOVEZit80jZT+kU3FqMOpbjeoe2Nk4DakxqjSNp6XTpVZcgMq952DFqlHhUxubS5Y/qxNXrD0oJW570N1DLbkuNF16bsgWWrRdyQhQSXt21SyOmYlMBREwlMCTA5rZ9i9dIDh9tOB/FIMEnEcfUmexECp8V+7bUoMxFPrN321Rp/tx1qiVWt02nS1pkr9uO8qPJkNONplOfYyopCXXFBtvKlJTqFbaW+SpltSkFSwkhIhAAkoESdqJAmfkxUmtTTaCkr2wBCYxGO8gSYmAJ+k5q4S6nSYlKarVQrtJh0d5+LFZqcyrwIdNdlzpaafBiNTZMlqM7KmVBSYESM24ZEqctMNhtySpLR+GwuFqdKQolCVLKUhRICdoMxEASJUeAfE1rKuGUgS7yQAO0ngDOSfAk81uj0/05T26tJdUlXGDBrcpSeuCP6i9HQMDBQQ7ISSBkckp/PVx/Du3nX0Okghu2fcPSVAkoKAAZgEFYUFGfyyAOag/UrkaSoJI/bPNIiRIAlcxyfBGPJ4iui2u/VzimlKaUppSmlKaUppSvh6BP4B0OQR5pUP8AeBgtXpNcUnKZMOnPAAJPYjoaUACf7TRJJz3yOc64b6+QpGsqICiHWmXBPEFKkymIMSkjPcE/Wr36cKV2aUrUEpQtwAznkEA85hXgYg/U6f8Apfd44ygLUcpIUlXjGMEkfckqSPuBIJzyyTrnHsL90lSiG/zBP5SF4KVAiOFSoYjPerKtSUt7UKCu3MyCTJkRx27HwZrnd6hvRNMYueV6gPS3PqO2W9NOQ/UqhTLOXBp8S+XU5flx3KLUAu2KvMqZQfrLar8T9FuCSoGPKpFVcEiTa9O1htTH6u1YfpFm5AS6sAOM7OlJUsQvoABbWghSjBUTAqLfZcSpL1uUpcQDyJBSOEkSJEycyPoOalH6f7q3D3D2st+6dzbPRZ93TXqpDlwG4kmmNVOPTJa4ca4maJUHpU+3mK37TrzdCnTZkmF7KnBKdiyYvGsalaMWuou21q4XmEFBS5O4SsSElQAClJjrgYJAmpe2fcWwA4EpUncCAFDHkgkxI8Y+81iu6O2cKu7q7OV+PZEGquQq7czt3VtVv0+oMopsezJ9Pt6LcEuUw4ExI9VmfU0oPpWlqpR4xZ/irGNu2Wba2uwp0QUo9tCXFpVvLiN5RtUIJGFcgpntWN0pWpHUI6pIjHSYzBjMAYjPIzURLk9Mm8Fy7dbdWxVWBWoVm1ywNxaTblcrNuRKrYW5lu1/deTKuiw6tMZVFpEmmM3JbMqMJYlPPsO1adTVuVhSWXJ211Zlpdw42lQ99ldqSgFQLa0tAlQJnarapKiTBIAAHFR7lotYaWVjaHkrSDkoICxuBAgKAJzkQccCuyPphpEiNX33prhkTIFoRos2QpfuqdqDrlLafkKdDMYOrlORpTqnPpo3PmpZjR+YZbtf4csJN5euI3Q3blKUiAn9o8EJkESOkQkSCCMkjFQnqaBasIKpV+keZKoQTIHgkgzxBgRU49diql00pTSlNKU0pTSlNKU86+GYMcxj5pUZd64RZr1MncB7Uql+ylRIHJ+NKeLgGTkFLUhgk47Bxk965J+IdqRd2d0RtSq29vduMKW0pSgmAcEbjHYg1cfTTqSy+0TKkObkjgALSkAzwSSlWDJHwRWkg2QQRx5dZ8DB8AnvB8gjo4/B1y1f5j/nYVZ6xK/Lmn2naFeuOl2xVrzqNGgomxbXoZaFYra/rI0Z6FTEP4bfm/TSH5MSKcKnvR0QGlIektqSt/aefQwpz2gpZSpwpwiO5nBCjiYP/I+KX7aVOe2XQhJUWwSCr4iDjkwcd+aj9U/U1dEenyJUT0w+oSoVaNDYmCgOUe2IM+ap6K8+unQJkm4DTHqy2821BNNkS46nZM6GsSUx0ynmJEWDS1Ib/WunNIEpB3OL2bj/AOSUlITyTBGM9qwKu3UQlNk+gKmUqBUVcCEmYTgwJgA5JraVgXrVL6thi46xYtybdT359TiKte724CK6w1T5IjsVFw02VMhrh1ZrE2nONPKWqG4hMhDMpLzLcRetC3fUwi7avEBCFe8x/pEqmUj6pIzwJOPNbltDze9bC2TuUNjhO6BEKgGIVmMzg1elrKnAAFcckY8nBORjIOBnPj+0T8d5Lf8AIkT+7JPkyc/ee2P+MrwCUAAQAr/hR71KX04wFK/4oqSkksD9MgMrOB/FT9TKkt9EKyhK4qu+gFjrvXYvw7t1Ib1G4CRCiyyle6ZKVKdUmDIxKDP2EiqT6ndJctW9wPStwgQckpSkyMiQCI4MZyKlJrp1VSmlKaUppSmlKaUppSmlKj/vy3mHbrpAKRJnNHIz26w0sY/Bw0c/3Dz8c3/EZlTlnYrQJU285n+HclMH6TBE1Y/ThP6RcIEyppJB7DaonP8APFRkWh8jk24tB+EnBPnGSTlP7jroHsa4c8HOpW5aeoJ2yQRB2zg94nnj71fm1NqISWxwZwnmCfE5P/7VOtM4An3lDIUlZASDgjB7SkZByQQQUkE4HnWmpDqv+qYMyOJ+SMq+8ea2h7YiGwD/ALU9uPn71QrTM4hIWnjgjtIT0c9YAVgeej0fnrziUkrG0GJkZEjOJI4Pwec0BR3SQZ7EQeOZEn+fFUb4kJSSXTnHwlOM8u8Hj2M+fz+2siW3EgAubj5jbA8ACRA8/wBKbk56e/0/wfAxVgcKuZBcWrz5IGOznATgAfj5x+PGt+3SsbJXIV0gScSZHzEHxWF1SQJUkKG7AIBg5g58VNL00tBNlVV7sqfuSYVEnOSzEhMAZ/YN4x8eAcdDvn4ete3oazKSV3jxJSIMgIHUTknv4ziud+pFhd+iAQAwgAGMdSzwPsO5MVIrV7qvU0pTSlNKU0pTSlNKU0pWuN0LUqN323+n0pyO1PjzWJrCpJ4IcDYcQ6yHAhftKcQ5gKI4HHFeAc6gPUWlu6rYG2t1oQ8FpcR7iSUK2SSnHBOI3QDUhpd43ZXaXnQpTe0oOwEqG797wQI+eeJFRFqFoX5RCUT7cmcUlQ95uK9IjkcsAiTCMhkBRP2cyhRzhSQehxC99Oa7ZL2uWDipKz7iElaCASQT7IcCJGYUQTz3q+22pabdA7bsNq7JXtST3OFEHABOBEZ+cckyqjFHF6mrQ52MF0NkYHIji82kgniR9wAzjUC+xeowuzXhREnAMSJBUBgn7niARW8g264CLhJnMkTIPEBEkkgggRwasj9YcQMGC6OyFAyGBgg9dEZ6Iz5IVqPBebVtFs6sKIngbRx3iZ58Yj61k9lqQRcoIPfaojntBj+vfxzbVVaTJPtsU1brpIHth33FEq/+DKCsgkYHHvsa222rl4QizcUgmCYUQDiB0JPJgDuTGAcV6cUy2gpW8gJ6erclJkxEJWR3AntBmqqm2RuZcj7bdItCppS4oJEqRCfiQkpP2+4qZUExmPbSSCpbQfUADxbcP26sOl+nNYvXGvZ01baZB9x5DiUROV/tUJBQDIlMqmABG6ou61DTrYCbxCiPzJSULUkZxDZJK4iAYFdA9q7Sn2TZVJoFUkRZVSjiS/OfhpUI65EyS5IWlClJQpwtBYZLqkguFHIBKCka7xoOnuaXpltZOqQt1oKLimwUo3LUVEInJAmJwOwGK5/qN0m8vH7lAUlDihsCvzbUpCRI7TEx24rYmpitKvyokDIGex/lns4+cD4+dfCY/wA4+tP8+foDwD9TjzUNZXqcvi2aldUW7tjr3kx6fWKzGoDtjUe5blD1Mos2pUtx+rvuUCM2ZU+XARMpX6K1UIs6jSPr23A4huO/Wla9c27jybrSrtSQ66ho2jT752MuLaUXSWkgFxSApn2wpC2tzm4fsw735n8HvTmsWWkPaF+I/py3uH9P017VG/U2o6PpQF5qVpZ3zbOnNt6o8Q3bsXSmLxOpO2rzGotps3NhWt1jZe0+/wDR9zoVOzbtz0WqzKzW6A9HeoVZk0yPOt9mKqe6/WRT2YcGO4+89GjNVJUaaJEZ6NKjsSW1NDe07WGb9KCGnm1rcdaA9l1SApgJ9xSnfbShA3qKAlZSsLSpKkhQIFQ9cfhhqHo64uiNV0XUbFjT9M1NDiNTsGb5dvq63v0RlGnqulv3Vw0y209dOWIftPbfbetnn2CHT//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEEAwEBAAAAAAAAAAAAAAgFBgcKAgQJAwH/xAA2EAABBAEDAgUCBAUEAwEAAAABAgMEBREABiEHEggTMUFRFCIJFWFxIyQykcEWgaHRQ0TwU//EAB4BAQAABwEBAQAAAAAAAAAAAAACBAUGBwgJAQMK/8QAPxEAAgEDAwIEAwUECQMFAAAAAQIDAAQRBRIhBjEHE0FRFCJhCBUycZEjgaGxQlJTYpLB0eHwJDPxCRYXgqL/2gAMAwEAAhEDEQA/AN/jSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pVBF60lS0yG0sDudDSy75iFIbWpAUsoQSgkpypJBCeQFqwcQsyrjcwGe2f+fUfqPeotjnG1S2f6vpntnOO/wDP91dZd+2tREeXUqAIH3ylBQOec4Kf9vTOogVPZlI9Wz8o/M+np+oqFg68GOQHvjb/AL10nr+SjP8AP0aDzwZiPt9hnuUTycfPv+2vfk/tYv8AF/tUQB2gmOXn2Cj1I4JOP/FddvcMtaiPzOmUfYJkMY/uVj/H/TKf2sX+I/6V6F9fKlwe2QP5gjNczd2eQUzaoox9xS6yrHBOc9/A9ODknkj4D5P7WL/F/tUZRfZx/wDSX/NDXwXuOxQT/NVJwQAS+0M5wOQF9wOf0x6aHZ6SRsfZWyf5eg5NebBkDbIR7hcDt/fAP8Me1fFzd8pn+uRRpzgguyigHn1BQ6MjH75Ptgc+DHqyqPdjgfkDg5P0/P2qLy1PZZfX0U/5+nr/AJV8F9Q4zJw9LoTgnPZY4J9uM92CMjOT+2dQGSMEjeOP0/OvRb7s/LKMY9B6++GHtXRc6uUTCghxyI6rJTiLOQ8onkDDZbTk55I80EAfPGgljI4dc+i87j27Aj6/z9qiFpIeRkDsdy4AOM8kbiAPfj8vfJdTYt21bDsmm3G2prCX20OjtWlC89vcnJIyBkA4OCMhJyBEDnkVLMCpKnuDg1UNe15TSlNKU0pTSlW/uCCmRAcKCGltkKCkoQQckApUCOQrJPqPu5yMkmB0D4zjjOOM9/bkY/UfnUcblGBGTyMgHGeR/vWCLNuXG7lNOhKgSfsyggH3AJWODjH2fsPfUoyuFOJCBjJAUnJ/Ld/r/DmqrgspBHfHoR6+vp+v8TVlzX7NxeFuFagFJyVoJI9vVgDGc/H+dfLEhH4A397kZ9OxU4wOO/p+6pjAPoP4evv/AL/yqjd08r5bweT3BTWSPQf+IED9Bz8jQ78YMYx9W/f/AFf4V76dhjt2HtjH6f6967CDZpP2qPxgPo5B9Rw2cH4JHHyPf3En9n/+j/kvI+lMt7n9TXejuXTTiHGVlLmcgh1BIOPRSjFVyn9lcemQRrz9sPmVArjs27GPQ87G7jjsf86hdQ6kNgg/lu4PH94DP+tVd6fuGS12SpinGiCChxTSkkfHERJHp+3qTkk6iLzOoVwHIwSMevPO7YM98dhnPI45+aQpGxZQo4Iyc5xx3LMQe3baP51b0iI6ASpUdJJPHY4r0IHJSWxxnP6/p6H5vGXwQdpHfgn29mHbH76+2TzjjPfHBP7xj93t6VX+l9BEtN6trlBqQ1VwpFiEBBDapKXI8ZlTiVqX3pQp8rS2SEqUB3BQGkEb/EKXbcAoKgLtAbLc59cAYI9AAfTmWvJSkIAyGdiC24/hx+Ej0OckHPvx2qW6UpQlKEgJSkBKUpAAAHAAAwAB8AY1Vao9ctKU0pTSlNKU0pXSsU98KSBjPlkjPpkcjPB9/wD4a8PY/ke3f91O/wDDtUfb+bGasjWqeSmY4yqSlnI7iwHPLKiPXHdlI9s5GeDqVDqGEZYeZs37SRuKghS2M5xuIXPvxVUt0cwl9p2hsM3oGI7foP8AerUkN9vcrIBUeSUkkpBJ9Qr4JKfjI4Oo6+6seAMd/wCGcn19v+GqQ7x/TnAVjOfb2PoOPnn/AK18m3E9jwTjg19a+KHVJ+4hScepK/Qe5GM54/UfH668QkHgdyM/SlVWI93pzkH2GCecZBJOfcj1HrjnX2we+OPeoSoJyc13y5hHccn14AJ55Pp/n50wT2Ga82D3P8P9Ko810LaXhKiCFnOPQgDOOTjkcjHIzjJxqWbKgnH6j64P6V9AOQPqBV/dEo3dbbjlkYDUOvjJPyZD77qhxkf+qjI9ec+h4+0BHmH32kflyP8AMfw+lSWo8LGnoWLc9wVwMZwOORnj0GMVI3U3VLppSmlKaUppSmlK+MhvzWHWu5SfMbWgKScKBUkgEHB5BII45PGD6ahY8HvyD2x7E+vHpT2z7j615I3/AIplU+6bV++27AlvUkmwqYUsOOxLCXARLKHi62AuIFtpYU6lOU97gKE9hcI1q7d+P+naNqupQ6xbWeNOlmt45Hle2uprVJ23SMChh3R4yoXZ5hBHAOWyfb9Kma1h+GmYRzrE7qU3AySKp7kFhgkcKV4PGMVfm8+tru16uHbzIEWWzYtMSYTbQfaelsyUJfS0yCVfzKWFEhtQSHCntCgcayH1L4mQ9M6ZZ6pcJbzxahHFNZIWeI3Ec0aToEBwSfJcMCGwxU4NU+26fN1JJDDK6vHI0UjbQVRgSO5BXHGRnI9DyKx1uXxX7Y2tOrYU2hmy27aAmxrrGDLYVAmNqWpCmGFLQla5bagnzI4HcgutpJ+8YtLqL7Q/S/TN9o9nfW91Omu2QvtNvrUxPYXCM+0QxyMVLTrgh4y4YHjA5IqVt0be3cU00NxEBBJsljlBDqucBxjhlJ4GBkEj3FVai8Se3r2fBhQ6Gc8ixdWwh1qZEUEKQ0248cKUkOIYLraHloUUpX3pBUUYNxaN4ydPazc6fBp8Ulyt+21JUnhOREqGdo1/E+xpFjlAHyMGAClTUhP0ze26yNNMkZi4ZTG4BOcAZYdmJG05AIyRWXV75iRq9dlCrX5rKA6EttzYKCpbXeFMpUtwDzAtCm8E8KGD8ayd99wNayXEFu08ahyBFcRMGdDhkJxwVcbZB/QIbJBBqlNZMshieTbJuA5jO35uxxncQSe4wvt2Nc5nUJNdRi7ua4VURuOiVMck2MNTUNpSEq/jOIyD2lYSvsBwrITnI1Dea5b6dpcmqXyfA28Fv8Rcz3E8XkwJjLGRgBhVyBu5zx3zikdi80ohidnlZtqosf4z2wucnJOcDJzx2HNRCe8bKJ17KpKfZjaIsf6sonTrEvOPCKVfxQ1HZS2hpfaCkpcc7kqTkDCtaxR/ak0nUOqbjpvTdGV4rc3KpqE94Ss4gwRMkcSE+XKCWi4UEAA9+L1boSWDT0vZLpmYlR5ax4cOVDFHGMDYcqSO5Br1B8N0s3nT8bofbaRLu7OaHSwV/TqbrXVQ2hHClq7mm3UyEhzP8VRKwEpKRrZvpnUTrGlQak3lkzltvlklFCgBlBON2H3c/wAaxrrsRt7+S2ySIAoG7aTlwGY5AB9QMNyMYqQeriqj00pTSlNKU0pTSlfh5/uP+CDrw/5j+JFOB37YNa9XU6FXo6ndQKSxQXF1u6NwwB9xCklVjKKk5SQoDtcT7kpxjgjXLLxMg01erOrdNvYUleLVdRiTLMrKJpHaOMkA/s1Dhwo5GSAAO+fdHlnGm6bNC2wtaW8qqc7t/loM7hxuxznue3px0N77xl3sCohyiqRHqK9uFFX5iUOsd2SkfdhLyGYojx1Kz5ylMrUSUrAFu+JfjEuo2PTukb4/htI0q0hikLDzQTCkDxA7sMI4FERIxhgzAAGqhpWmeVJdSIfnmldnjGcH5iQcYABz3J/o4HvWDdyR1WtWzWmRhivS86y0pSlOpU8tTpUC7koCVKX2BnCR3rK+4qzrE2r9Y23U2g2Ghi8VLfTBJJFEwdnln80z72kk/wCz5bsyI0B2MpJ71XbWOWynedI9zSFQwyMjaPTII79s4HofXOOdo3s7Z28Nv2jslxyNRyrGQzHKilLwmoW+7DUE8lMqa1GCCAEsOqCkBCC5m3ejutL7o/rLpzVJb6VrfQ7jUZ/LdiqSxahE80lkCGHyXN9Gm1nB2M2e9Vi9sbbUdMvYvJ2y3aQKzjbuBiYKX3Ebwqx7mYA5IBA74rN/UfxqW3huj9CZe9dmwbHo5v8AgbjXvXf6ZUtydtDdlrue3/0y3Or2I64sPb4/ht2Fg/IdKorklxlCF1Z+r6heFnWjXPQGizXk3xHUWpaTrPUa6Of2dxfm51a6lSGAlSrON8NqFiYncSUA3ZrDWs2GNXnCxsloksNs10NpELpEqguCCUUlS4JGTk8hiKzRv3rPJ3709hprlJZTcTkeezEfYfZNYmEiVFUy6yjtkV09Ehl1p9PchxloFSlpc7Thbxa+0B9+eHJj02NrC/utek0PWtNuHEdxax2aNK8b2wbe0bsohZig+ZMSfjGa7o3TaW+os0zebGkCzJLH/SMrKyFd3AOFY5HGWz71FusqUIu2pKpSlS31KQ8W0JQhhlTZ7kIIRgAo7gvKcKJ5ASQNad9OzS/f8Wux3bx6id8byIimKO3cjeixk4IZMqwYY2gjtkVfVxKy2rQoq+SMEBwCwfGCxyNpPbDHnOWzzWxH4Uogi+H/AKbKBBTOpnLRvH/5WU6VLbJOBkqS4FnAAyrgYxrsb4Roy+HfSjO7SPPpYunkfAaQ3M0kodgMgZUjAUkbccmtaOpTnXdSHPyXBjyc5OxVXPPODjPPPNSH1kmqFTSlNKU0pTSlNKV+KGUqHykj/jULZCtjvtOPzxT861+PEVFZqfEj1grlnynXty/nKQVHuLdzBiTytKThOCXipJCs4JOPjmJ45WEI8SOs7Vzsla7jv4iuPnW8tYph3PYZJyPQkHHes8dLv5nT2lsBuDRSwtt5AaGVkVSRn5jjBXuCOBxxH20vWGlqjPuJ/qGe4hPA4wQTkkcZwDnJHsdaFdZ6lNa3xjdHuF3sj4Riu08D8GQAFwGIyOOTkVkrTrQOhkUKJCAMHBYAfLwCR6Ac4PHNYK6ub7rume2HdyNPR59raSXqra9Q48yh2xt01xlNsSpSG3JLNSxFgzbK4kMMuyW2lJQw0uQ802br8M+nbfxG1yPRYJpNNtLO0F9rGposxFhp5kEGIgWRJLmS7khsrRXeON2MrSOkMLuslqdxPpMRma3MrPIY4EUgPK44jHru3rgsRkgHIBxUcZvT3xJbwjwr+76qV21ZTrMebG25S0aUV1a6tC1IcmZej2UuyZbdS2EyLUxyR2zq4SMOIyK3WfghoesjQumOlLvqaWwlktZ+otUvlb466t5N0klpDPFNbfd7mMCBYoYUZWJhfGHqGKx6huYBcXd38DuDN8JEgKwJsIwypIo3Z52YOVBAI7C5r+/8Qe3enMyj6yU1F1+6LtViIt8mFGYj75ptrvomS50iPVohVcOzgVTclEj6J8Nz1voDrduyqMicjO2ldW9PeIGlaRovS+tTeH3V+g6hA3SC6kEayuprVZJBpZmiaRIYbwzSQl7hczhhEyyqxQ2vdWd1ptxczXMS6lY3MbfFhVaN1UkEt5bFg7Jw42twAWxhTVv9GuoTXh4uNodNrbcit3eGnqlDFh4euqMtbzg2smWkPp2HeTHkIdFU2p5bVc1MCJu33/JjqQuukPLraP170h/8j6Zq/UGlaVHpHib0vts+velkLBr6RDiPUrONdySPcIvm288PmC+hYIxW4T55TT706dPFDLMLjTrkB7G4B3MqljtiY5IVU3FSS2RgZzwKm5a39dTKUGX09zLL8lSwUkqbbbLxWCjP2LA4IKgpKk/1Z1qxp2sQ2M7Wyyftw7IyMQjAhiGWRTiSN8sR5bqGzlSAwwMgR6dJdoszRkx7iQdpIwxzwcHIIHBHoO3BNbLfROrTS9IemlYgdoibH20ns9Owu1MaRgjnB/jcj2PGTru/0JbfBdGdK2uNph6d0dWXsQxsYWbI4wctlgQME9q1Q1eUzarqUhOd9/dEHuComYLg5OQAMZz9PSsoauyqdTSlNKU0pTSlNKV+H0P7H/7jSh7HHf0rXv8AHw6xtrxZXk2YVNt7h2ls+elwLW2glioZqe5eMgpLtWtJ+FDBPrrmN9qq7TQPFSW7kj2rqegaVMMkbC0MMtq7DBI+UxAHPDf0cnJrYTw6tzf9KoIsFrW+u42UDDLudZQdxxuyJOACSR6D0gzubcEORJC2nkO9qgpPcoL7VjnIIVnBwSr7u1WeRjnXOLqu9fUdTeSEsYnJQKgYHzGYR7QD8zFjjbtXuc7skVnDQ9LKQkSDawUnLryBySWIyMAZPcbRj2qK9xdU3UDxHdIqJx+qs9uVnTrfPUGHJiPMyW519R39BWGIh9p5bKkxRLhzJYj+W6kMxsyAlXku5X0D798PvBHxOvhYXmm67q3U3TnSszX0UkMtjo2s6bfym5W2ljEm2eJLu2gmbdFI88oRY3k31SNUs4bzqXSbcGKW1hsbi7UIUaOaaGZUI3g7WaPeMr32EgZAJqXyJgSfuwtJz3AlKs93Cu4ZwcjOfUYVj3wMB6PM0bq6na6DdGBhSSvbAyB6Y9hVce1AACgycEkEEqCOwIcDPHscfUVW2N1xK1KXJTZlR0Iw7GC0pcfZOQ4wlROEl9BU0oqBBSrtwck6v+31vyoQ7hmaH9rjzJIzuiIkXMsYLphlBLod6gZUF8A06fR/i/2ZRFDnbgoGHzEBsjOCCpPHABx6VCLpzZ7Y3htLrV0DuNtxpnTvZXVZuw2nBMlaJG3lX0NveLUSus47iJcJ6hmyyiglwFs+XTvvVbrX0y5UeTnvxX8Sepen73ww6/6Z1RtH1zqHopZNSVEW4+KFjINL36jbTo0U5mjjMUkdwjMPKinQq5VxQOneiLe4fWNN1BEu4bG/EaENsVY5l80ohBypRgVO3kKQvIOTmarDciwpKFlKmoS5NFQx2ELcWGYJkQ6mLHQXCtxxLbKkt97y3HXCSt1alqUVa8aFcXvUHUlrc300lxf6zrcD3UxCq001/fRiRwAAoy0gYKvbLYBGRWRLq0g03SbhEjWOK0tZnjBOQEt4mJZvVsKqkZwePXkVuTUEAVVLVVgASK6tr4ASPRIhQY8XtGOMDysDHxr9HWnQLbWVrbjI+Gtba3wRj/s28UfGQP6v7vUCue00hllklPeR5HOeTl3Zu/76q+p6vnTSlNKU0pTSlNKU9dKVr6fi6Vztd1p6bXbCfKTbdNBBLiBguSKXdF26r2IK0s28ZBOCewJBGANcyvt36cV1/pG/CfJPoFxbOwzgvbagxUsRjkLcAdydvoTgVsl4Gusun6vbEjMF9FMqccieFVLEf1VMOex+b0Pp5YNSi6tnzwFoU42Hh6lSAWvNTg4yQ0oYB4KFpPCVpUea1yhExkQEGMrNH8rqV2OCso3AAqJVwCpYb0KfiBA2bt41ClAi7tmSQOOEJIJGduQTgHaGP61559E6zd8fadZvra9arcG9eknWzqNBtqd2UtubcbIt01tHuqjqHFlaApL9K1Z1EFSHIzqY7SG2gtlpC9zOv9U6dvupr7ofq7VBpXT/AIj+H3TJsdYuFc22k9VaRdXtzo+o3SZLm0jjvvg5NzgITcPLKqlWGL7Cxn+711GzgNxeaLrV8k1ujH/qNNuCVu0j4yHjZBMiALvjAAO47TPjanX7pTueC7IZ3xRVEuMvyLOn3PYQqC5q5IypcWdDsX2f4rAKRIWy4+yy4tDbriHVBsat9QeCviN0rqUVnJ05faxbzs33dqvT8EurafqMIw3mwyWaOYBKAWiiuUhldBvRXjKs10WuvaPcxswvILeRCRLBeMltPC4B4dJWGTjuVyB+EnNY93n4jKGY5IoOlcKX1W3U4VxYw25HmPbNgyQlKmDdbvYYcqu096JCIlY/MkuxWpMp1cGDElz4+QelfA/VzD96+JOpw+HPSkUZuLubV2i++7yBiildO0ou03zD5WmuAgEjiKKOSf8AZ1Kz9SQg+To1tJrd8+UVIYpPg4C3G+a5wqKoUHOwPnG0HJFfDo70+nbD23YI3DZM2u8d27it96b0soKVxoD97eLaKoVewp14s1tPDYj10BsOOBCUPKaWW3Ek2h4tdZWXV3Usc2hW8ll0xoem2PT3TltcIFuhpmmoyLd3ClRtmv5C91KGAY7k8wbgauXp7R30uxb4pxLf3txPfXzIMR/EXDZ2x8k7Y4wiL2A54yTUmei1ENzdbekW32wtw2/UnZcNSclSVoVfQ3i3257Vfaz3YAJwMZ5Op3wU059W8SegdOZVkW76r0ZWOASALyOQk5X8JA+bntkgZAzSuuZltOleoLvG1oNI1F0Y8gM8PlhWz6EuDkg4ZRgZNbjiRgH9VKP91E/5/wA6/Qqoxn6sx/jXPUnP6AfoMVy1FXlNKU0pTSlNKU0pTSleI34xdOks9CdwFpSkNOb8pX1pHBMhG2bGMlR9u0QphQM5+9Xr6a0H+3XYM+g9F6ivHl3erWjNtB274baVO/8AeU8fTdxjNZ/8BbgJqGu25P4oLGfAADHZNMhAYg4/ED2I4xtO7jW23nUdSum+4rzqR09cn7w2/cPvWm59jS3n5rjD3nOS3nauGnD64aEOuNxHKgptapk/RuQreqQxGh6a9K6z4a+I2g2Ph71vZ2fSnUOmwjT+luq7GNoI5RIojhgvZmfyxPJOfMnhvA1rdzSLLHPbXEjvWfb6DXdFvJ9V0p59SspW8+90+Rt7KA24+WuOQq5KnBCAgbSAFqPfRDxF9P8AYULqHIvX7yvXe78nXm2qGPUSbG6sa2Y5LQpLaY7YhOWMUojJlRjLRMkSZahHYcbbWtF7eLvgb1Z1rqfSkOltpzfcvTsOma3qN1c/DWkVxClntkSIiS6e1cm4aOQRtHsjV3ZWdVNG6W6v0rTodUNyZ0kutSmura3jgeSd4iXIyFQhWj3BMM2cjGAauO83vuPq5Kfsds+ErbV27KUWnNwdWKqJE+p85wuNJvK8ooZDLD6CJbi5VvLckENuPoeCUap+kdNweGWnppWsfaE1LSoLUELovS9zDI9uGBaVbIyjUrnbwY9sUMBiz5IhQMdsxe3EuvXBns+illMhbFxqcOxHyeTLEoTCnIL7mkyCeDgipmbIrBTbapoX5BQ0dm1XNM2FdtOtRFqGXy4p1xiIlhvv+mKil4MKU4y293ojksobWdZuudYOtdR6vdWut65rujNfSvpN31DcyvqDWgVUR5oJZGWGbG4MURCUKkgAhRkHSbEWdlbRtZ2dncLCFnis48RpIc7lVsksFyBzkcgDvV1spWnKSlwLWftSQQsk5HaEYKs5PCQM5A9zzZrHPJwQMfiwcYGOSfp78YGOw4qoI2qAB7Agd/pgD68/qalT4IaNN/4s+h0cNhX0e7lXxwDkf6drZ9qV9ufVCmO8qIOMftrZH7J+n/eHjh0AmMpa6pPfkbcn/orO4uI2zjsska5PtznisX+LlwLboHqBi20TQxWoGDlmnuYkAyOF+UMSCOfw8ZJrbCSMJA+AB/Ya7qjsPyFaHHuf+fz5/Wv3XtKaUppSmlKaUppSmlK8nvxdqYzOhWwbpDZUql6nxWHFhIV2R7jbl5FVnPoDKbiHOU57QCRwdaefbVsPifC/TbwjIsOpLU5GMqbu3ng7ngAnAPrnbjjNZj8Ernyuq7mAZ3XOmSEDnaxt5o5ACMjO1WdsccA89hWv1BbCWwcgkErQtB9CVE5BABBSQSP9j8HXGTVGKzSfVimORkdh2IORgNkeoyOK3TtOFUkZwM4OQD24IBBIOexOD65qOXVToWu2sm99dNLR/aW+q99ycY7CI8nb15LKFoMmbQTUrqHbJSFvNOrcajiyYlSI6pldKWxYtbA+F/jqLKwm6I8SkOv9IX9uljHqU3mjVtIj4VUkv7eSLUJ9OjbEg8uVri0kRbiMTpvt3tLW+lGlkGqaI4s9UhkExVQohuXA/pROrQoxHysVTDcAgsSRV+ke/rvfdfdwNzURqN1bTmM1l+qKJyKZ+YoPpV9BHtG2rKrkoMZS5VRI+objxnocqFY2ESU263b3i74bad0He6Tf6FrdvrPT3U0NxfaOxkikvordDGxaS4g3x6jaSmUm01AGNn2SxTQxSxsDVum9ZuNXguYr+zktb/T2EN0VyIHkJ+URq+SkgHzPESxjxgsa59U9vR7KDRTXvzZUhncm36wR4FlbQWpdbY2zSriK8xVvtJU9Ir2n2Y850JXDWpBadZUUk250FqFxDdahZRpZeS2l6pemW5s7Sd7e6gspVspVkuVZliFwUZ40IDlfmB9fvrlqrJbSB51c3MEISOWSMPDJKglysbKckEpu4Kg7lIYBhjHctP1Pstp7q2nV/njVHO3DaqiyKVW5Ye66Svpd5bVRHgsW8CycsbaktKJNmqXDrIzEt6nblM989EqS07kfp3UeibLWtD6i1NdOl1i10u0LR6imnTaHfT6noWoyS3EunyQCK21DTr4QLDLK5QTMhRUkRHFvanb6rPa3emwm4a2e6dohAZkuokt7y3KKXDZngljy55/aKrbiQCD7V/hV1Nrc+KDaFjcMo/MNvdP933VgER/pkMTJtSijUBFKlGKM3CQpjuPkOFTKQkNpSjK/2NNJs7nx7mudObztP0fSupru1kZ1lLW8scenQkzBVWQGS+KrIuPMPlNk7mLWD42XksXQKwzhY5rnUdMSVI8rjAkmZNrMxXb5WWTJ24O4nFbPmuwdacU0pTSlNKU0pTSlNKU0pXn5+JvQv3fhK3nIjR3H3NuXuzdxrLaSox4cHcEZixkrwD2tMwZTynFkdqRgq41rl9qrSZNV8F+p/KjZ30+XS9TYqCfKit76NJpSPVVikbPfHBwMZrI/hPdradcaVuIHxSXdoozg75bdyuBgliWQAD8/TOdZeBKC0KCk4UBgHIwrA5OPYdvPvwfnXDTWbciUhSDl2O4nGckYOOw4bBHGPXJya3rt3/ZoQcMV5447kcfkAPSuypXcR9wGT28jgZPGTj0HOTzxz6apiwLhQVwxKgHLYz6nIOAMnOe3t9J9Gxgn1X9/pnj/AJ3rBknrZtTyJD66rerUlkLEiCNj7ncmuusFttxhhxiuUxNlICwyyht5aH32jFYeV2hWs2J4KdWyXsdl98dGyWsKJFBezdX6b8NCkqNcrm2uLmO8tY5FKE5t4khWQTyLu3AW+OpNMSIukN8suSXhawuDIwHJbzlgEcsmB8gH4jgE81cmy98wd3/mjtbBv4CamW3Xvi+pLCkXJdcYbkhyvTYMtKsIaEqQhUxhKmC+FNoUVtrxanWfQeo9GDShqF/omofecdxPFJoeqW1+1ukLLG0V98NK5t5Jg4ZYCd3lgM42uDVRsNSh1RJpIYriNYHVD8VA0L7mAYGIOqllGOXXAB474NX+y+SkIJKh6JUo9xHwnI7T9oyc5wB6DGrBESq52KAwXGecheMIDnhR6LwAOBgVOHdzgse3BYkYAPOG4zzyeSfU162fhFbfdl9X+qe6xGUqLTdPYlD9WlJLLUvcG5IE1DRcx2iQ6xt59QQCVFtCyQEEZ6Jf+n9pMr9V9Z620TCOw6ctLAS4yiy6hqsE4i3gAea8NmZFTk7ckYzWtn2hbxI9J0GxDAz3Oqz3DDOD5VtbMm7H4dvmTjn3yATzjYG11WrVSmlKaUppSmlKaUppSmlKi7404BsvCt14ipGVr6bX60Yz3BUdLMkHjB+0sgjB+dYw8Z7T4/ws6+tAMmbpfVFA9SfKDjB9CDGCD6HB9KujomYW/VvT0zZATVbXJHBG99nB/JiD7jI5rUiYnsNuLyUjJUQopV3ckkYwkjOP6jnnHJwABwP1qxmSZiV7OwCE/MBwACDwSMenbgDvXQS0IaONgcqQSMZx3I9Txjn/AM812DZsO5QhaSo8fcpSQPn4z8cYBz64GNW+baYHIQgg5GCMjB7jtjHHbkGqmvYfkKp0m0W13hTzo9Qkec6kD0T6EghIT6ADATgDPv8AVLZpCMBH2sMkjJG4tnBYAgncxznPzH3r75DY4OVIwT6c5z37ZGce9dD80WsjJ80gYSXHFqwn4CirKRgk4BGc+mDzMNZLGpbsexTHykEr+fsP3qPYVCUJIxtAAwABjHJPHfA59K7iJo7FdpCSfQKBJOMEYJJGCRj7eSMn4x8vhwWJY4B7BBg+mMknt3zz3x7V8XyOM9mxkfl+f+mfYV72fg4Q+7ZnW+0VhZf3RtGB3kHP8nST5RQcj0SZ/cB7BYJAzz1R+wBZCPpHr66Ucz67pMQY85WLTS6qDjOFEgBHbPYY5OpP2iJw+tdPQjb8mmXMpKjaD5t0FAYYGWAj259uOcGvZ/XQatd6aUppSmlKaUppSmlKaUq2d6bfG69o7o2wosJG4dvXNJ3yWEyY7Zta2TBQ6/HWFJeaaW+l1bRSQtKMYJxqQ1SyGpaZqGntsAvrK6tCZF3xj4iCSIM6/wBJVLhiByccVMWs5tbq2uQCTbzwzgKcMfKkWTAPoTtwD6GtV7qb4Gev/Tt+TGueme77CPEdW2xuHZtI5vOhsGGh2mahe2/q7WGhxCEueTOpYamwpQIWlOdcifEH7N3iTo19dyR9M3Oo2KTSGO70tPjUliB4l8uDzJIlI52ugZewBAzW3+g+KPT91FEU1O3hmZULW97L8NNGcDfGzzLHBIQxx+zkYFRheQRUQNxbEl7blFq5ceqpWT2xbdqXSSEFPKkqYtmYTySgD0LeDjAHoNYDv+iuoNOlaO70q+ttuSfiLWa3KjOMESopGMYOexH1rJdv1faXSgRvHOMAqYZ4pYirAD5XjZ8t2yuMhffIq01QGlBBTZQvu7SCq0grJSTwRl9SsqBGAeTgDjVI/wDb2pKGBtpRxydvKjB5xj2559vqaqw6gtQD+zlU4JUrG2BxnJJUAY45PH1xVQYgx1BKW7GpdUpSUISzbQn3lrUcJQGGXXX1LUrISEtEqVkAZwNfaHpTVbggR2ly4JIO2FnOcZHyqrHk4xgeueRUvL1HEg+bzD9JFEQJUjdl2O0bR8xzj0Hrms37D8PPWrqDMajbL6T7/wBypdWhKZcLaVxGqgSU9qnL62h1tG2Ag92XbFIKcLKu083Zo/gr4idRyRJofRXUGpb5FBuEsJYLVeduXurkQwRoCy/OzgDHbbki39Q6/wCn9PVn1DWtNslX5hG17HPcewC2tuZJ2I5JwmOw3AkA7LngK6Cbo8PnQ5O197V9VW7rvNyWm5rWJWuMynIzc1uNGgQrGxYQlubOiQ4jbbhbU6xGGIzDzjbYUes/2bfDXV/C7w5h0PqG2srXW7zVL7Vb2KykS4Ecdx5aWkE90gCTTQQRqrhN0cblgjyDLVp/4l9UWnVfVE9/p8k0thb28NlayTKU8xIi7NJHGwEiI7yHAkAcYwRjFTX1n+sf1xUSBkDPI/tnk498D299eE4/52+tP+fn9AewP1PHvUNZXic3xtmy3VF3d0O3vJj19xcxqB3Y1PuXcoerKWbZVbj9u+5QRmzKny4CJlV+StWEWdTSPr23A4huO/bTa9c28ky3WlXbKJZUiNpFPOdkMjxMZSYlAMjIGh8sMjxbpNw/ZiXP0Pg905rFlpE2heI/TlvcT6fps2qR9Tajo+lAXmpWlnfRw6dHHqkxEdvBdNBeLqUtrNBqMa2cmwu8sGS+k/X+n6nQq7O3dz0trMubugejvUVzJrI87b7MVU91+5FezDgx3H3no0ZqyVGmiRGejSo7EltTQntO1iG/VCIpo3eSWIDyZWQNAF8xml8tUQb2KBXKuHVlZQwIFodceGGodHXF0Rqui6jYwafpmppImp2EN89vq7zfCQpp7XTz3VxFDHFNdSWIntPLnjmtpp4CJT//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAAGAwEBAAAAAAAAAAAAAAQFBgcICgMJCwEC/8QANBAAAgEDAwMDBAAFAwUBAAAAAQIDBAURAAYSByExCBNBCRQiUQoVIzKBFiRhQlKRkqHB/8QAHQEBAAEEAwEAAAAAAAAAAAAAAAYDBAUHAQIICf/EAD0RAAIBAwMCBAUBBwIDCQAAAAECAwAEEQUSIQYxEyJBUQcUYXGBMiNCkaGxwfBy0RZSUwgkM0NigpKywv/aAAwDAQACEQMRAD8A3+NKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pXDUTpTQyTyBykSlmCKXcgfCqO5JPYD9n41wzBVLHsBk4pVMNvKze0W+8o6ObkVNNdqqO3TqVYhsxycyRgch3GR38Z0LKuCzKm7kbjjPGeO/bIz9wO9GDLjCM2Qf044++SMfzqF/1ckq86SpsNQgHLlHdVkXjnBOUTAwfk9v2dVAikEh8sOBtOUzwRu7HPPPB4x78dC5XgpIM/+kH6eh+lQTbvuHIBEsDKc/kLxARgYBOTKgPfOuwiJGdyD7tj+orr40Y4JIPsVbIzyOwI5HI57V9O6LyQzRw2NuOcYuMbD/PGrx8+f3286GM8Y59M9wT6YIHIPce4xVM3cAOCzdyP0P3Bwedv+d6hH3ZfoRyaCy4+OVcnE/5+6X57eQfOAdVDaSgE+XgZ7t/dR/PA+tdluImBILcHHKOP/wA1CPvq+RnibbbJW7nMNWzJjOBkrUOAex7Z7apmGQei4996Y/8AtkfkDuKrIyuMg4XJGSCBkf6sfSuMdRq+MkVFutqnHYfzNIzy/REjvj5+MjQxMqhmZAD7uB35+3p7123QZw0hGO+0Mxz9l/3Pt3pJ1atlKoauit9PnyDf6DkMf3YR0RuxwFBOTkeNdNo/6kXHf9ouB/P/AD0rrujBwshb2zHL+ORGfyairN1i2ReK6ntsdySGtqpFhgT3IKmGSV2CLH79JLMI2LHjmdYVyQASddCyAhQ6sW7bSTnv9B7c+1VPDfBYKxUd22sAPvuVT7emOaunrmulNKU0pTSlNKV8ZQwKsAQQQQe/YjB/+ad+4BHsRkfwNKsZ1P2hT3CVKuJkjZowZFdcqXbMbMCDlcheRwDks/cZA1ayxZJO7OQcDGduB+7kkDPHp6djVzA4XIKg5I5J7d/cGse66l3HZI5KS2XP2KYl1MNO0fFskcgTLSs/Fj27yEYHx2GrSMXMalVklIJJIZlIOQOMhAcHA4BHvn2vdsbEMVyw4ByuB3PIwc9z+965xnmrX1dluczv7kbOzkklIqdguSGzlUVT/kDHYYGO/RzM2Qyndxlt7c/jB9MD17ZrnA9h/AVCjb1wDgolVGMgkoShIPYg8JlOB/cpUHDfJPchHcYGGccejuPQexHpwMjj6UwB+6vv+lfv6j3579yaha3Zt4qGyjXTPfAFZUqmCMYMYrQCPk9s9hjGMa4khmfs064UgATOVJ55YHv6DGQMZrjagIyFA/0j3HPpn04+3Nctm2juSl5hhMCWk4xyVdRUKRkHLF51KMM47KSfBbuc0bP54JKLiFYnWUiNlnMwkRuQxGxNhwp3L5sEgbjVKSGFmLK2TgANwBx3GwNjjkc/cYqbVmwLjchyqViSQAqGE7xL3B8cWdi3fP5Hj2P673gEpxuTcffP9iCO2B/H3ruiIoXABYDBIx2znO3JA5xzkmqKufSuscsA1IpZOCGaVpiGALcnLQAnzy7MCcAEjI1bTW87RTGMqkhUqjsc7S2cEL+8QQp7jGO/OauIwCSOO474+o7cE/isvfTN0gsm39vT7kulLQ3S+Vd0kSkqno4wlvp7fiICj7kiSepMsk8rcuZjgVQBFyfto1jeWduRe3nzs0jq/iMgUKqjGAoZiDnP72OxxjvYXk5eQouVVcgjdu3HPc8DHGBj6fgZc6zVWVNKU0pTSlNKU0pVDb2TlTRHiTlZQMDyU4MM57cQGJPz2P61Tk9Pz/aqifvfj+9Y+XWAFmCrn8sMQDgKfIyBkZY4I/4/erfOxgoyQTnJye/17en+CruNwkfcbskgfXjgeuOO3t9KpmWmP59gATjyCwA7d8Z7/sjI85Ou5IAyeKqxyBwASN/OVHpz/tipe6CMjGGAJXDZPcZz4AGAPHfzqmXOTjGPTv8A71UqMikOBkKQfkZIznz3A8eNA5JHA5wM45xn710eNXIJzwMcY/uDUwhZAclCewGATjIwScsMKMdjj4OCfGKpGBuI4BAz9TnA/rx+aoSRIilhnPAHbnJGewyTjJ7+n3rlllzlghClSo45wD37HI8fJ7/4xrgYxx29KqRIqgMM8r27AZwTxjPeqburAoRjBz8YBI89yT5PjsR8dxrgkENg54P9KrDgqfYj+GRk/gDissulNN9tsHbo48TUUj1pB8n72olqAzf8sHBP/wB76rQjESf6c/xrGTf+LJj/AJ2/rVw9VKpU0pTSlNKU0pTSlY2+q/q5B0K6OXfqhVW03WlsF52xRVdIJGi/225L/b9vPUNIiSMiUr3GOolcRvwijduJAOsB1NrcPT2kT6tPG8sVu0SuEGSomkWPe2TgIhYFmPYDNZXRdNk1bUIrCJtskyyFe3mMUbSbQSDyQpx6k4UckV1oy/UY2BJYk3DWbWqpqD+YC3VP8n3BaKqSjqfuFilWeCsNDUq0YdJ8NCgeFleMtyQHX4+K2hNZR6mGhuLTxhbM1tdQq0Uu8KTKkzA8bgxXjClGyQxqTP0VqiTfLGJ1nMIlAeKTzKQTlCAQ3YjBydwZe4rm2h9QHozvu73vb9spdw017sr1ZqLbXJa46itpKNfckuVqkWs+3rrcIQJHqI5VaJWVpolQ8xf6X8TumdaubqwtJn+fsvFd7TxbUzzwx8maFTMFkRYyHYp2B7e3F10XrthbQXjWxaCbaFnVHYKXYoqyKD+zZnGzzAAMMfWriR+p7p5VrPil3GvsLzkUW6CVwmVHNFjq/wCooLopKZ7ug781z3vOv9IsUeScXiRoAW/7vEzAE8ZC3Hf0OB/KqEPTGtTyLHGibm4G5HC59twyP7Y9ao6s9cXQW0x1Jlrd2TPR+4s0UG16h5OaElkU/chWIAySCQBljgDUWHx16DMhjF3qbMmCSNLIX34dp9mPdu3ryKlUXwl66lSKZbGEQykBHeeMbgSBkAEHGTzwSOPXgyOz+tnoD1FuUNvpV3rBW2qJrxD9xTR2h44k/wBuk7RpdEd45xOoSOZHjlMsOELNGdSTRPi70lrFyLKxe7kuhG9z4VzDFAxgUiMSkGcgKXYInqzEcA4NWepfDzqnRoGury3gS2eRbYzDfLGZuXESsVBDqoLPtAwoOTjIqMrfXb0os1ZJaHod2V9TA7QBGitEdQ4iADFfcuILqucc2UEcS78VBOspe/ELQ4GdWhuRNu2mNGtRhsDHBmOAcjGQM89sVjV6T1QqHPg7WXdkeIqc8DaQjEgn6dz78VZ27/Ua2Ve900Wxtn7A3Jeb1cL9ZbAXqrnaIqOmqr3caWgiDtbWuVQ0sP3XuPCseQYmV+IydQi4+NfTses22gW0U02oXk0UEYMsDIrSMqnd4bMeNxK9slTwc8ZofDjWhps2rXEkUFjDE0xcxSiSQRgllQOcHkAFioyCGQe2wNZrfHabVQWuHJit9LBRRknJZaaNYeZ7Du7IzeB51vJAAu0dl8oz9AP75rU7HczN7nPH8h+M4/uameu9cU0pTSlNKU0pTSlYU/UVsqX30Xdf6ZuINFss3xSxKhDYbrbrqJQwBwYvtvcBIx+PftqC/Eq3Nz0N1LGMkjTJJFAJBJieOT39AvH1Pp3qU9Ey+B1Xoch/T88iNzgYlR48H3Hm5B7jNaZtdLe7Xc4gzh7ZcqjDcmPtSuFVc8TlFkjAVQfIzjIAXHyk6nuHSe6RJJkRZWcxxyskTSKCVfw1YKWHHmPPA9s17w6asrO8ESy+G8gQ7WCASEEcqWIzgkk4BPJJIJNSDehjtNzjE0rUi/jUQzNVywSU8rhOTJLyRouSpGGPPBCJkkADUUs9Tv7xElimu/GRtxaGaQOrgGIOCrht7IoDMCPKBkkECp7a6NbWscnh2iSRzcSB4kZWAY+jhv3iSc8ZyV7kmj7p1G3bQxTU9g3Df1SZadXemrp6mnMcEYWHlIxKyoDFD2SUryhAUF0A1NLLrDqiG0+Xur6V4EAhU3MXjziCMDw4zPJ2RRjCspOcEu1WcPS3T7zvcvaR27+K58OMoi+Juy2xEwA5B82QMDt6CrTT7r35Vy1H3m5LwIe8lSHqp44I1jJkaR44yoUBYwzgL+YXuCfNw2qzySRgTNPJLNEkUS+SNpWZVRVjDLEoZyqsMhT+8akKw2Fuh228aRpG6tLKcvEpBLPvwxGxct3PbPGKpmw71uM9qXcW0d0TV1NPU1cP30L1KzNPS1LmSFxJ7c0DJMEqIUkROB+3niVXWJo5E517pLXJ7XUIRp2oyW8UzMZI5Q0LhXXw5IWZSFY5XDZV1BIUgGsKkuh9WabBJC0d7Zb5AmxXiKOj7JPFjZVKuxXDeX9op2vuV+afpd/79ptwPFFfLrS11eRFPWxVEonmjqQ6zIaj3DL/AF1kdZfzBYs+TgnFzPqN3Nb3F8L2YyTK6sRJIHOMZ5DY2nAGAfXnuar/APD+jCOOI6fbSLEVaJZIYiqOuQjldhDbQTgEYJ5zkCu5P6eGxmqesXR6GsqjUS37qbtGCUuCZDzuUM8zu+VcrGsZwfyx+RPLAz0+EKxat8UumAzs7DUrfajOSQyud7HJPBwc/QnJFag+Mcxh6X1GJI0jSGzuNzLEI1yq+XaFGASzDbjGGGecg1uxLjAI8HLf+xJ//dfVsf3P9eP5YrwNX3XNKaUppSmlKaUppSsbfWJaJL96VvURaokMklV0Y6ilEClstT7Zr6sdh5x7Bb/GsL1FaG+0LV7MAN8xpt4gVjgE+CxAJ/zmspokywazpMzcBNRs8n2BnQEn2HuewHJx3Gg7t7rbbt17FqaeWojaspmobjTMWVZeU1MDL7bnBKyxtkgEKWRWJ8kfLbrPpmW21hUMYEDztuIBKt4oKEkgAEgDA79ueO/0I6VtsmCZJMAI0UgVgGKnJBBG4rsJJB9SSO9VN1G3rY+oPTu37ipZYIrlRUMVJcUVlEkVfb4hFMwUDJSeNRMpPLyTkjBOtLXSLnRuo2tZY38GbZ4WUZVZJWUgjIwwZieRxkcEYrbOkq8cEkZZyib5UOM7g3fe2RtZX3bcckEYFYKy9Xae2zPR001TU3yaKVaC32tXnlkdY444VrRIj0lNSSyxTM1TJymklkYU8MqRuU35ZfD+fV42uJflrXSIo8X13eeKLaFP1CKKMEb5I/KJCCqpnzcVG9Y1O3s3EEdvPd6hKB8tZWqRSzsWYok00jYVEmw5QOS7FWyDtJEVH1r3pbqsSXDY5rVESkzW2eJ6/wByNHUiaMr9vUsqOWV/taaOaRFQwGRkZe0fw66QvALbS+prZLh9v7OeGX5fcpViBJKymFCFxlWYseQDwKjNzrWvWoeS96evEt1JYtazx3MqYUjdtRQZSpyRlFwQVwc4NJRdQNqbdr67qZtu7wy7dvVdCeofTqGCWmrrTVyhnN7ttreNDFcKdXAmWLlQ3GOOpEdRM+Eiml10vc9Q6bF0b1TEYte022LdH9V8SQahbxqFNncXUYKS5barhmMojO8JuTmP2Wqx6LdT9R9NIbzSJ5AOqNCZcXNjK7Ere21s+Hj2IW3BV8Nm3LuJIqLuPV/bl+vNqr9vRx/ymJxPS17OFqKuKb8QZIVLLAMglopWMsMqtFIA6Mutaw9DappdpfW2qHN4p8GaFQxjjdN2WjLKCwOAyYyCrZbnIrcEOqWOoR213ZSpNBNEJInR1KspAIUkH9aBsOpJIII7rXe99IjfJ6i+svoPtSNvcioarcu5mXuVCbZ2leLyJH5dlbnRoEPjmQqksyqZV8BOj5bf4m6TdBNq2zXd3IQpPEVvIMHPbLMue2Mk4zWjPj/cxQdFaq4VRJcSWkCENnJluULjHHlO05OODgEjmt3EDAA/QA19GxwAPYCvA/2r7rmlNKU0pTSlNKU0pVA9VLS1+6adQbGqCVrxsfd9qEZAIkNx23dKMRkHsQ5nCkfOdUZ08SGVMZ3xSpj/AFoR7fjniqtu/h3ED+iSxv8A/F1P9j6V5JkW97tta5VdpiqWT+WVlRZpovcxlrRUy25hjlkFTTshPz3Bzrynr3TNpelzJHEXjlbBMZzlT5cttPpg4yefzj3f01qr28MbIx2siuu4hgA4DfunsR24OO5HeqgHW2626iraBZSlHcE4zIDy/qAFTIoHcZQ8WAA5LgkErgRCfoG0upYrhkjaeDHhMY+AoIAUkjLBT5lBAwc8nvWxoepZIYzHGMtIvmYtuY5HP7MgBQe2R24Y+tWh2XvGeW7XLcP3k3uVNdVRwR8sGOnjKQgEqQF/posScQOSCSQ96hhqUdQ6REulQaMkRNtHHHJORlVlmI3tkAhipY5JORkAc+sZ6W1Nru51DXGmd5Z726t4EcgNBEjGJowzHJQhSoXAwWba2Xq8bb5mEQkNQ6txJLBiCBk9mKHLEjycH9eCQdcroCI2+KMIQpHlAXuCB6ckA8c8HH3qYteqSS7FySDkcKNvupXBHA4PcZBNWf3fuunornR7ohnje4FmttxiGHNfbaoGNhVxEn3BA+JFJId34gl1U42HoGm3lxZXGkzCQ2sUSXdlJISflLtGDAwyE70L4IIDbOcH0qG9QXFlpV1Y9QQokbiUadfwxAhb6yufI6TRAbGMbsCrsNwO0qSAaoqx3U2mvr/tqqRaGed54aJQeNLLKwZ+EmSDHyGIwQG4dpCxRScvqlob61hFzBF48X7Np8BpZyABufGQc4P6hkFfbmqWixx6TdXbWd2zWFxOZIrLzCK1Kkh2jLnIDElkVc7Q20gYFbQ38NY8m+fXnX1ZVZU2F0G39uMOGZjGtdctqbPMr/8ASG57l9lTnLLK4A/HJynwo0COx6klvSCjiyuiUZc7DI8aKVdc53q5yrYAwDnJrWf/AGgdYE/S1nbRgbZtRtkZiRuYxpcTMNueRuVW8p7DtyBW+3r0jXj2mlKaUppSmlKaUppSuKZQ8ZRlVldkR1YBlZHYI6sp7FWRmBB7EHuD40P+f0/w0rx6/UFt+u2T6geue0ZFKzbY6y9VLQy8OHtLS79v3tJg44COB4kwMY457edaX1SCNLq6iBOBK/OBkHeRlfxj8/xr170rcPNY2Uo8oa2t3wCcsGRMHnPPpxxjB7k1Ync1bWQ0X3COysk0PucWKuFJwD2b9HP/AGkec9wbOyt0eTwtqt5WCswA82AQTtyeCT+D+KznUF5PDp63EcjhluLXfhipKF2TjHBIYIVXI3bee2DLdv1b0FdU0czexzkaemMh4pJFUMZAiN2VpEflGVOGZQMeBqy1WA3cXjIC2FEbrGOQyDaGcNjBZRlCuQQPQnFVdBujpt3dafdP4aSTm5sDKCsc0NyfFYROo27o2bDqzDbwcseKuTPdJUpwHkCFlGeTYAB7hSWZRnjgqMhvjx31GbfTlkbCIy7SGbK5JAOTgDdknnGBye2e1TWe/MMb7pEKlWJaSREA4xjcxUAYOSC2SBkdqtNdq6W51Yp6dzNAZ4pqmZTyiWOFmb2Y5Dku8jgIwUfiB/ccHE2gtfkrUSyg5eMrFE4I3Fl2BmVM7QN25A2CCvbsDr2/vZNbuo9PgJlgjuYZ7u7TPgpDAwIiSQ43mRwq+VCCpOJB3qbRlkUZY5IJJGf0cAZA79gcDPbJznWN2LuPAK+gIHf7dvepbK/hxoAWOcMDxkjnBPOA3vjjk81t8fwku1p7n1z9X+/WVnj2v0h6bbQWUg4R9871vd5KK2PMidPQzKCMBE7YK6nHREA+Y1F1VVKwwIT65aZnx2I/8vkjnt960D8arnNrodsXLl7u6nYEjGYYY4wSOPMBP6j14ycVvR62XXn+mlKaUppSmlKaUppSvxKeMbsBkopcD9lByA/yRjSleVB9TbZn+mvqOeuuwxQihRPUj1NqrWOIxFR3e7C8UEqrxwRJBWhshcAnkoYhQdS66qwajc5AcfNZKjycFRwTyQM89iCTnHrXqTohpJ+ntOEEnhyyafHFHISD4csYaME547qe4GAeTwK60dxSvFQVVsukfs1p9gwzhSYapIJY2DLx/AOUR+LowjY81kSKSM+5xbQq8yXNsFkjwAycKVJXbyeTgspIyF+3Y1f6leXSWM2maorQXIRHt5GXMdw0cqsQzY4Yj9LqSF7YIqT11ZaxCDVTJN7iKwjjIkljZlU/jJErtExLcQ345PckAZ1j1srsyysnADMW3AlCNxAXcxVTj0yTx2AqU3eraFLa20eovHIzQq0cMMhklQlRuClVVlLDuFA5yTnNS+mWkr5Vj9i6zRKHcvUVTGmjAB48IwxQDIHYt3JUYYZXVWS2aJC/iWiMAdvhhdzYH6gVJOQeANw9jgA4wVpHp+pXoVbLV7i2OcyXtxK1qoC+U7GY7mLeUKDgAc5PFTiOmCt7ccPtxqQyrGFijYZBBUKp/wCkEeR/2j8QBrHyeIVZncu3YnBGRkYzyc4zkZzgj6VK4EjjCxQWywogCKiDCkKMccHJwCTkKAAcHNTOOJgh5DsMjBU9iMDHc9wO3ZQF7/Pk2x9vp9ORn6f7nkfTAyTxFUZ2OSqltp5xgds5OPocc88cGt53+Ek2QtD0S9YfUPgQdwdV+nGyFk4YD/6P2PV7kdA2AMxnqCjEAdvdBJyca2P0VGPAvZuAWmSMgLjICB87vXBZhjHByc84rzL8Y5y+raTb7gRFZTzFcY2tPcY/ORCBn6A8+m3hqcVp2mlKaUppSmlKaUppSvy4yrD9qR/5B1w3Y/Y/0oO4rzRfry7Yj2T9Vf1RRQxmODcE/THeUTgcFmfdXS/alzq5VyuGK10lVDI2D/UifucHOq+qF26lcL/zpFKAeSdyA8fQHOPXivTPwx2ydPWBwQRJcxsOOClww9uCQc9+/PpXTNeKGO60zxzRe4gIePIAaNuK4kjYeHLZ8NhvBBAKmOwzSQNvSTYSQXXjD9sBhwe3B57e3etp3FjDqKeDOiuoQiNnIBiYDho2IbHmySnKuTgj0q00tE9iqW9+niqKWWQxirSNFqIVHhM9llCqPyQ8CSpMLMzcBli638TASlJSMmBZHWF88EspJZRkg8N9APSoh8jJ05cCS6tobuyuHVfnFiT5iD/pkjAy5HDBFTHcNjy1UcSRSLG8ePbZAV4gqpRxkEAAEAqQcHifjzrFrmMjcAqsQTu7YHBJGcAY9/8AeplGqmINHgBl3x7QFQBgSpUAAKpOTwB9ewqBaGrilk9ud3MVXBThHKpGyvGZWEjJExTOAqkL+KnPDvnV28ivEGZUXdBuLKCdrh8Iqgv+8O45PJOeQKxii9heZYruSR4r2GARkrzG8TSsGITOVIAADbT2IJOa57VJcairrmqSPtXWnkpac+2DRr7EfuKCiB6hZ5HdzUSsSSgSOKFAUFlNDbJFF4Kgyb5A0u5i0ylm2lwTtTbjyqqjgk5waq29/qMlzfJOC1o0UD29tsQG0AQbxkKHlW4dmk3ySMqsrCMDJB9Fv+F92XHt76b9z3MqqsvUD1C9UrvIwABlXbkVg2PG5IUBuK7cEXk8TGV7Fca2Z0fGU0ouc/tJ5DzjGVwDt9cZ4OSTnI9K8zfFO5M/VJU7swafaRkMOxPiSEfTAcYHtjk9zsb6lda3ppSmlKaUppSmlKaUoRkEfsY0705Hbv6ff0rz3/4m/p1dtu/USs+8ZLbNDaOo3QLp9daK4+0y0tfWbYue49pXKBJ/7HqrfHbbd9zFnnFBV0TsOE0ZOsesYzHqUUmMLLaoVbOQfDZ1ZfoQAOD3yDnmvSXwhnim6fmiB/bWmpTIQSQQk0aSo2M4w3nHHYjHfJrXOqZsRGPiQEzkjJJ7kY4gjiR27nPbBBA76h7YJJB+4wfoO/t98VuIEMApz+DgcfUEGqJulVTU1PLLW+ylKpYSmXDIVPJizg8kUAK7EkFR5AJwNV7VJnlCwhjLgldp83A52/XGMY5HpVG8mt4bZ/m2HyxGyRZFMkZVxgeIhDZUY4JHlPII71J23LY4PykuVLwUM7EP2RIgGkLBVJHtoVYjHLBUKGf8dXS6bePwtvIQeMM3JzxgZPc/cdxVmdb0mMDN3DtBK4XeVGzAIJVfKB2+g5qo1q4JIwYzGwkWKVDgDMboGjcsoGWKN4Y8l5ee/fHTgqWU5BTCMuT5Shxgjtnnv6kZOSKzts8UsSzRJGyyYcEYYN22vkjOcHg98cdjiouBGnKjjgZTkc8Qq8uRJySFCgFixOBkk4GdUYxtcsXzweNo4zjndjJxgep/Nc3Tj5XZ4Sx4wCxYNkBSAp+nbHPB7Yya9O/6DnTWv6Y/S09L1tutuqrXcd0WPdfUSpo62nlpapU37vS+bgpJ5oJlWVPu6Kop6qMyKrPDLHIBwdSdzdMxNFo1oGXazh5CDnJ3uxzg9sgZA4wK8Ydf3Qu+rdYdWVkjnS3QrjaFhiRNoPc7WBBJzk+p9O4LWeqHU0pTSlNKU0pTSlNKU0pWl3/FlWZod3eiLcdOgMtbtbr/AGSqYEhjHbLr0jr6Je3wGu1wYE9gT+yNQLrVN3yJJHafGe6spjbcP/buUY58xzwRW7/g7PHEdaV2Iy1mwGfULcjdj0I9/XsK07axZHjYk+0cAZ8gnx8qc5B/ID+7Az2GtenjI/mP4j2/Pp9OBXoS2kiALOwYMPK2MgdxxnkZxwQKpOqMo5KrRSggghoxxJz/AGsGODj5wBnzjGdd1U4BDbc+2f8Af/MmuXdWLDG5CTwcYIzkcYIx2wM9scZqRPW/kQUiVm7urQKCR4HYdx8Y8Z1c5lAJEjD14dgePtiqJeAAq6xjOSVKodwPfACnPJAPv6/X9LVKWLEs3dclcRjIPwApwBjBUnGPAB4kWzoXzzyfcevcknPJzz/Wq8d0qlQmSoyAOyjgjG3tx9qqGhriIaoqvcUlWQgXyVgk4YPf8i3FQB8k9gMat2jKggHnGPX1H0/z37VxdTmWFgAUK5djnAIVG4GD2Bw3IHIzjPI9ff0l2tLJ6X/TraI4xEts6E9IaL2wc8Xi6fbeaXuOxzM8nwP0OwGt76cNtlZr3za27Z+8Scenb0+nfmvDOqNv1PUW5y19duSeSS9zKeT6n+FZC6vasaaUppSmlKaUppSmlKaUrpQ+uJ6AOqnr29OuwbL0Uotp3TqH0m6h1G96ex7gnprRc90WG4bVvW37rtzbm5qqJqW118tVW2y7mguc9HaLxLaKWKqraSpgoqmGL9Vabqeo2UQ0qSJLq3lMvhzcRzoyMhQuOVIzuHBBOKmfRHUNj09qks2ox3Elpc2/gt8ucmNxIsiyuh4dV242jLeYkA4rRC6ufTy9RvSmuq7f1L6LdZ+ndXSySxzybo6ZbsisrPGSJHo91Wm3XLalxgQ/l79vvlXTlWDCZ1YE6Wvb7q7Sw4v+nLqSONwrTQRbwQT5W3KhIBB4BwDgZ7V6M0zW+ltRRWtNYtwzAEK06QyDI8ysrOCCp4KnBY/pzkZxEufQ650rSqt6tcntymJo2rBFJG6txKSozpIrK2V/MAq/ZsYOsR/xzErFZtGv42VQW8S1UHJOMndjOT69jUkihsWGY9SVtwxhbneQMZPA7FeCfpycDkSEdIbmsgLV9A/HIHGuiftlhgs0mT3yAcEf85xiuvWNtJnbp92COcCIIT7nA/UBgDI+30qubeGMqTfQsuRlnlBx24AcqckAHC5ycdvWo7V0Qvd3qo6Kz0Nffq6R1VaDb1vr7/XszkBEjpLTT1lQ5zkKohYtkYB7k1Rr9xck/K6TfyN5QNkR3bvUEFeAQQATxzwcgY6Pe6fbHMuoWSqoLHfKFJGCCTyBhTznJ7cgV2k+iz6O3rN9R3UXZK2f087z2d0/g3HYq/cvUTrZti8dP9k01gorpR1tyeKi3PRW6+7qNZRQVMEFusFquMNa8gp6iroonMy53SNG6n1W5iaXSms7czIZpLwhNkanccxkK7MQPLtBUnAPeod1L1/0xptldxw6lDd3jQyRwwWLiZ/GdGVSZE3RxKu4Esz7lz5QTwPTMttvorVQUdsttJS0Fut9NBRUFDRQR0tHRUNJElPRUdLTQokVPT0tLFDTwQxIscUUSRooVQNb+AAAAGAAAAOwAGAOOOBxXkoksSzElmJJJOSSTkkn1JPJNRuua4r8sSBkDPcf+M9zj5wPj51wTj/O31p/n3+gPYH6nj3rDWq9Tm+Ns3LdVLu7odvepp7feLzTWCXY1n3LuUTWyy1tytck93nksFNGaqvq6BKy1fyWK4UtdZqj7+OQSJHTzxpteubeSZbrSrtlEsqRG0innOyGR4mMpMSgGRkDQ+GGR4t0m4fsxLv6H4PdOaxZaRNoXxH6ct7ifT9Nm1SPqbUdH0oC81K0s76OHTo49UmIjt4LpoLxdSltZoNRjWzk2F3lguX0n6/2fqdRW7O3dz2W61l5vdgmp5rFeam2U9dt+GlavlnvIt8NHQ08k801NTRXJqatFRTTU1VTwVMbRC+07WIb9UIimjd5JYgPBlZA0AXxGaXw1RBvYoFcq4dWVlDAgRDrj4Yah0dcXRGq6LqNjBp+mamkianYQ3z2+rvN8pCmntdPPdXEUMcU11JYie08OeOa2mngIlP/2Q==</t>
+  </si>
+  <si>
+    <t>Trà sữa trân châu hoàng kim</t>
+  </si>
+  <si>
+    <t>Yakult vải chanh</t>
+  </si>
+  <si>
+    <t>Hồng trà vải machiato</t>
+  </si>
+  <si>
+    <t>Lục trà vải machiato</t>
+  </si>
+  <si>
+    <t>Hồng trà sữa vải</t>
+  </si>
+  <si>
+    <t>Lục trà sữa vải</t>
+  </si>
+  <si>
+    <t>Lục trà vải chanh</t>
+  </si>
+  <si>
+    <t>Lục trà sữa thạch dừa trân châu</t>
+  </si>
+  <si>
+    <t>Sữa tươi trân châu đường đen</t>
+  </si>
+  <si>
+    <t>Trà sữa Konjac</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAwEBAQAAAAAAAAAAAAcICQoEBQYBAgP/xAA7EAABBAEDAgQFAQYCCwAAAAABAgMEBQYABxESIQgTMUEJFBUiUTIWQmFxgZFD8CMkM1JTYoKhscHx/8QAHAEBAAEFAQEAAAAAAAAAAAAAAAYCAwQFBwEI/8QAOxEAAgEDAwIEBAQGAAQHAAAAAQIDAAQRBRIhMUEGEyJRFGFxgQcjMkIIFZGhsfBSwdHxJDM0coOy4f/aAAwDAQACEQMRAD8A3+NKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKV+VLSngE+pAHY+/b/PvqlmCkA5JPQAZJ69h7Y5rwsAcZ5/3/AH/HNeMzvcbCNscbnZfuBk1TiGNVxZTLuL2UiDDbdkOeVGjpU5y4/KkufZHiRm3pMg8hlpfSrp1era5pGg2MmpazqFtpdhCVEt3fSC3hQscKC0gB3HsAMkAnoDWbYaffardx2Om2k99eTHEVvaxmaVzgsdqJk4AGSxwoHU1Wjdvx3+G/a/b1jOW9zsKyeTe0KrrBcbqslhJsc2U5ITBhxK1ZbkCIXpy/IfcnMNuxkMy1/KurjLaMO8Sfih4S0Hw7N4hi1ex1VDp1xqGlWOm3lvNda0YELCCy2iXLOdqk7PyySWwBUq0L8PPFmu61Fo0Wj6haOLpLe+uLuyuEh08NkmW4JEYVcKxGXUNgYPORiL3C+M3u5Z5ljuI7b4FtbikhE2Uly2yXKp+T45nL0dDjjrdZLcqMSkVWP1bLbn1CSwty5s7ER4dY7EKi2/8ANWo/xSaxcabY6vp2j6bo9rCktzqtpfvLqd/Pbkg2y2kULW/w3nJuXfckyCXagiIkQnvunfw2wJFffH6rqOoTBIzbpY2kdt8Jl0jf4jf8SLmYsS6pFtRYAZSSVKjs9v8A499BV0lrWb0bQGwzmhkzhNmbV5FVRMYlRWniiOhVbmdmm4rrJtKm1SIsWdfNPRFIsWHWvMMBmXeHv4n9PudKsrrXvDmoQXl/P5Vp/LAJrW5VuY+bhllgkIAQq/paRtgwxFW9Z/hV8SxXZ/kep201m0Il8vU0kivYSqhpOLeN4pYucJLmNnOB5QBzWWLw1eO3w/8AidxP9pMTyN3ErOPPqKe1wzcdEbDsorbq6rm7KvgR4tpJajZA1NZUsV9lj0myg2HlLMV1Y4J7x4U/EDw14vsReabfJGytHHNa3jxW9zDcSKzfDsjPhpV2kFUJI4zjIz8/eJfA3iTwpevZapYyMVErpcWqtcWzxQuY3l8yNMIAQCwk2lQQTgEZuOl1KjxwtPJIHUhSeekEngkD8enqfYdjqZ7x7MO3Kkf0zgH6jI5FRE4zjIP0+Yz9vvX9NVjkA+9KaUppSmlKaUppSmlK/k+4GWHnSSA0044SkdSuEJKj0p9zwDwPc6pfO1sZztONvLZx0HB5Pbjr0oATwMZPAycDJ4GSOnPesfOVrzXcy9ymvkeJmXt9V20ubX12LY/SN1z1RjK2PIMczZcaDcv5O4tIkrvI9n8vG8xxMOKlrp6eD+KtB8Wa5Pqrt+JGs6BY30gtrDStI0ez8ux05kWKUvdSyi9nv5ZQWF/8Si2oUfDwKZJXPTtIutG0aOwdvB1lrl1bxtNPd3l9O5uL4MjKDZo4tvg1iUhrVo5S7HIaIbw0Abg+Biwz7GImJL8YeYKx6PlScxFbPXBkpj3LEWVDjyqqfNfnTap35eZJ+ZW0XDKdWH1KbdClqh0/4Q6fqnh5fDWqeNvFWuae2qLfz/zN1uELxI8cSReY8ptUjSaQ7VmlincIZNoHEt0r8U/5Jrr61aeANBtr1rA2UKiCZIljYxO7PDGIUJYwRqMgvEpco241Tncb4WrGRx0V2Mb/AO0uJJpKhyolyJFi2hd7JW+HE3WQQ693zI931lbsuxkuvLkWL3zbMWGUJSI1qX8PWj2zRfy/xIbW3gt4IW+NkL4gyqskFvEipavLGqiZ98oZtzFW4B6HpP8AEHeWjTyT+E2u3urxrtFVJJfJDo6PGszMjy20e4eRDuiMWNsktyDtqs034NtzKbhGz8ZmA2lfS066WkrHrJuJAoUL81YcrbU/OSFq+YU24Hn4qLFbrSVfOISXmX8aX8HNOj+PfS9Z8P29zqJ8ud7mzMqPECpSMPNJLJMUkRZAfyhkAlSQRUii/iQu0kQSeFdRieK4W6lmgJWS4kK7NjW4jjiSExtwGNwedgHl112GfDM3Hw6BV4/deJPw87gPYzZXE7Fos+LLNc39VdU/Ify9LdrFvLeWlLinIrlShmKwvhb0OQkpUnEb8GdOuygm8QWVvewW3k2ws5J/hrR3cSSyJDM4cv5i7lnikKK4H5WRxk6p/EbNObiSDwzrEMepPAdUupZFF1L8PH5ccMMi23w0cTRgJIktvlhwHXrXj8j+G5mdDByO5vt9dr8/vrZaSzDxVFnSxsfgQpcmfSsUdzkh+cgzIEl1lkSoiCoNNMllLimI4bx9Q/Bj+V6aH0TxZZ3V2ki322YS2puZnJUPLei4RWkIaRi8cX5j7FdWVWrHj/He1vru2E/guSC0hjZWyYLn4hnUJI0ts8QjkRiqs4YgEqN2CAa9ntHU787EOS8vjeO2dt3duJcivU9jaSMuo5CJcdxqZIu4WVvXmPWVwqQ4X25Zq1Bh5pqVHdjPo+yR+FtJ8R6Mxun/ABEvbS+kaRHtkk/mVokc0RUyRxXZliaRHCeSGUAAyBNrMpqIeJvEnhHxDDFbW34XWk0EWyVru3jk0+4Z433KkZsvhzDbzI0kcwLyjd5bImFxWxf4NPEKd79vWIlvfftZmGIV1RAyXMYtS1T1OXS3mltG9gQYylw4i5LsdZmRoahEQ8rzIzTDTny7P1H4a1SXUNPjM0kt1NbpHFLetB8PFeOFAaeOPopY+p0HAZjtyuCfmbW7JLS9mMMPwsE8kkkFq0xme2i3HbEZHAZtgIUlgGOAWAYkVcjUmrTU0pTSlNKU0pTSlD3BH/nuP668IyCORn260qhvizhZ5jUqFmm3MejkSDGhNW9XY0jdiubHjOWLL8lh8uNLjvITIq0ktk9TMZ4KT1O9Qg3iu1u2eKSyCGTyXZwygpKqH1IxwTuCg8DovPvUw8MzWzrPb3skqxod8TpIyeS7KRuxn1gsdxVAS3IPyjrHp2T7g7ZVd5FfpIttaQXmZ0WNHlw48KzjOux5bCXYkpEplTTqOwKw4kdKk8cpOo1p87kiWSZ0Xa8cqFBlXBCsuwDeMYJUcHbg8jNbe8SGC4eMxSFlA27yrh0PKsGfMZXoDxsBbAPSoNt9msry7EsuxLc6BjdlDyCNKqnJsGXbG2fqSAI/XcSkGxaksKCXGlh54x3UJUlxR5GqtUVZ1KNcR3HmghkjWRMKR61Z2J28ZUMCN5G5OKzra/NtPaXVpLcI1uoljLqPLSRfV5Xkj04LAKxwO4+ZxkeJ7wATr/CtvsN2syidt/Aw+7mSbKQ1IkX868g2aEixXLdsOFOWSFILkSYSlLTi1Ao8s9A53qXh9bizgt7QfDmCXhPNI2oTkoc5O0nJPGWYnjtU+8PeOP5ZqF7qGoWsWoG7gAWIxxhYphnBhHKRBR+lSSikYGeBUJeJWQ3tDh9sxt3QM41n9dj8CrG5k8TZDUFsRY0Nx9aGo0x6zsnIzBeBbgSIbTjfU+slAbOTdaBNb209zaQpDcwQxqbl43cxRqqh2CgfqCjeBggkc4U82vD+pLqOqW9vqjveaY1w8j6XEAktyPMMnknzXiWNZOUUebE5Yp6m3YPncVtc1YwHAxkd9Ubn2hhrTlOXRbMx3ZfzjDkqomRYkWO3EdV97cWYXYzPmNBt9hplfmJGtutNkk09PjPIvZvL8yS4AMUUoYExttUhUYqMBEVVPsSCTbvbrTzrGpPpsF1o9uZ3W0t5WS4aBVfbJbyugBY4OBgk4PI7CkW/cjbvDMopIlNhUSXmspy/ydhkSJQo4U9yvfRFl5GHWnI8qM++CIValKUNykpcUSlSUO6rSrK3hKEqzXE06MpiaYxw8gKZNx37QAACMKP/AG4xKIb7VbrT7xjfBNNisjZvK9vGxmKOolEMY4RkyGe5bnyyYzhjzvn+GLbai2u2K2pxiorGYMmHt9iQt5BZjCxn2simiTbOTZy2WGFzJK7CVKUXHgSkEJSEgca+sNNt0trSCKNdqiKMnGfzGKKTId2TuPOeTjOO1fLWpXElzfXcsjs+Z5AMtkAK7BdvYZXHTjpip91n1hU0pTSlNKU0pTSlNKVEG7EJqTGqi+0Fx1KmxHeQCgF9DDjSVE891FlZQPcoPPqNRnxFujS1mTJZJ+mQF2kZZXY+kBu+7t/fcaO2ZZ48/qjU7Rnc2GH6ccnA649/c1AOLYlV4ZVSKqqacbjSbW0uHA6suf61aSDIkdJV+lCT0obQOAhtCUDkDUJmeAyMYtqhiSVB6vnO8Z6ZGfSOBngDAqTlzLgycuoCgkYbaBjnoTggA55zXXZEpIYdJIHSFdz6AFQHJPtz6d+B+8TzrGf1EsoJHPtxjLZwTx1wD0J45NXEYIApDck7cKWzgZIBAPq749vtVbsoVGktv8OoUeHEoUlQKFLSVpWCpB4JB5SRzylSVDueQLJDRgsiLtLESkqrEKcDgnOOemPtjpV043Kp3A5I6EZxkDbwMjoc55GT2qku52C0eQF9VnFZkMrSpCmXkJcRzx93IUnp+5PYkgjkk/x1UdTeMMiEkOqvyMLvKhW9BGBlT6jjnp74vRqynaCyvlgCGI46dfcdQ2dwPSqmWmGUFNMcFRCZi9cZENSWAEN+Qw6txDSUchtPC1qIUlKTyogE894/qjJMjSeVtklAQiMYIAHpX08KM9+AB14rPhnlAEcjsY9zsAfUd8g2sSQCx3Dgknj/ABCcbaal3D3lwWHJq5FnZWmYYZStxUhUqOG3L+Kyp5mE2gpcebjyn1u+YXG1IZbW4lJbSU5nh+zhaW0Plk3AeKHEhjKqBlsIqDAJP6mYbivHSqL3Uby1tLiB2VYHhuJV8piCHcDcHyctlQrAcgMNuOud2+HGbhxY8VkcNRmGozY4A4bjtpZQOB2A6WxwBwB7DXfAMAD2AH9BiuS5J5JySTk9yc9/n7/OuTr2lNKU0pTSlNKU0pTSlRvuupDWF2Eh2MZaGJVapTKQFLKXJrDBUkKKR/oy75p+4falXHfgHTa5CZdOuBwcAEAjOf2/15/p86zNOcpexbchiSmRwfUDgZyCRnBx/TnFU8t7aM0lxipjOrktOraWqLJks8LH2kgtOJSU9+e45PPrzzqGWulRYhkuU2I7ZzjDIANrAMASh5yCvIIHyqVtcOXccEo20M2WwTk7tpODxjO7jPNVk342yz/dLEBUVmQW1SlU+C9YQVWs0xrGsbkIVOiOjqJ85cbrMF3k+TLDLih0JUNY2q6Pp91avAl1Ja/mRlpFYOWVG3bQGIGD0Y/qKnHtWy0q9EEsc0kMc8iqxVmCIyseDjClFB6HCkY42twKhLAvDyzsy/kaavNc4t67IZH1D5G4nsOs1srrJWqOy1GQ0JD7aUNynEhIcLfKusEKMfazhsxOLaSR4T6j5jbtwxnfGF2hCxy2W8zOfTs6DZXN7LexxGaK3j2NgfDxlAecZYuXZsD9JXywp6JgYPl8xpZzinUC6tEJVzwVuR1dwCT2EdPIA7EjnnuPXtrGCZjZ1WZtg2K5YcEED1ck4x7Y7dqtkDccAAqTyPn/AM/rnjHvVWcwoZEYyAbac+4VLUPKKW+CO4/wwT37dgPTnn86eSV3MgDsNshQAnK44HbJwTzj59uavQ5BJwjE+kb1LBc9CBjGeODnIPyqQfh8UMi/8Ze2cee/LejUQyvJEBxxSwmRSY9PfjqeSPs61PrSlK1dgopCfY6mvhG0RtRt2ZmcqRONxJwVBGBnnAAwPYDHvUf8RXDPasuMYKjIwMq+FIJxkjI3AcYHB56bT6R0pA9eABz/ACGuwKcgH/etQL6cDsPavuvaU0pTSlNKU0pTSlNKV5DPWBIxG8b7giGXkkAEhTDrboPB7EgpBHPvrU6yu7Tb3azKxgONgDODxyAeCR1wRjFZdiSLu3IGfzVHfucdv8d6qjV4/BqkSVIBeVInS5ZceSlbg+afW8WgT6NtFZbb9elpKU/u6gc97I6bUdljSNAQedzADnnsSeo65HU9Zb5ALtIWYEu3pwAMY+x6n74xx0rr7pTTTaiFIQQFEjkDgJ79R5PsByfX159NanczSZMnLjYV46HsMjqfp9utZsY2rg5BDALnuCM9Pr2/r1FVszu9oa6G9YWl1V1kBtt15cyxsIcKMlts9SnPOkPtIUkehUFEE8JSCSAcaW1mUMSmZHPoRQWYknAyByCQcgfPoMc3FlVGQllGw5IJHfOc9xwftjNU1a3J263H+tObf5pjuYppnosa3ex6yYtI8NU5MlcPzX4yltdMkQp6GXG1uIW5BltJV5sZ5Kbd1bTW+Y7iMqHAADBlDnPAGcZ5HTrn2FXUlidyY3SQxEFtrA7cjK7sdARg9gRgjioPzaclClpd7JSfsJSSTxzyDyCQOOCDzx6kca1kluu1mXILOSyjk+s53e/HGM8VeErj9J2HI5Ht7EEHIP8Ajpg81ZL4XNILPxTZNahpXk0G1t5PQ70daFP2d5R1BbS4OyFFqY4vjnqUlCkj0XxPvBUX/iJJST6LfBGBgFjjBPbrgDjpzk4FRLX7gtEEy7HzhtVgBgBcMVAHK5798dc1sUa6VUYppSmlKaUppSmlKaUppSukyNov0VuyBz110w8e5KGVLHH8eR6e+sHUVV7O5TB3vC23qM4HIz0HHTP/AFq5bs63MDKQArqecH1Z44PXnHFVNS+ny0BShwpIKeTwSogKPAI557nn8d+eANcsOfLdV5MblZBjJCqCw464GM7gOnBPNTwn1Y7nkff59KivJquY4LQJZQ61M+fa4fW0rqi+Sy0hD7nW3ISxMbdnNuNtOBQPk9Sm0pChQs6xupjba6spJC5+Y4IIbtxjB6fWsrMT1AGQQcjIx3Hc45Gecnoela5njW2O3n3uuswupmVbYYdslsllV7tdtfgcC6Rhu5mfDHKuqnZZDXneazrXAai9rckr3IGLtycWloXCbkT2Mmx1txU9Uptb63jMQZZnubjM++RU8mMONio3lgOFPGSvAUlm9WSdNNbXEpaZ5NkCE4jWRRLKP3+piFUnkIONoIPGTVZ/C3guNZFv41M8MOcrxvEMNxfKU7+4JkN1dZLcWEfL2zSbbYPZrdltsUeb7fT6zK/rrrhNj5kNNo648q7hqT5qd1DDZrJfwLvmdPJ8uMYCwsRJJGXG5lOCpI/ecctVFnE5uR8LKvlorCZGeRmLSAhUYnK7kXlhzhuCAeBkPtYNtDooUS9XFkWsSL8rKkQkvNxH1NdLbbkdt9brzTKmwA228888GwnzXHHApaufTeSJZjEztGZHcM67SQx3D0j0qAOiqAAO1SgECNAF2lVwcncc9snnOOn0H1rJV8JahCsj3tyNSElUSqw2kbd/eSbGZe2D7aOAAlB+lxVLB7kpbI7a6B4LTPxrYwoESjnnJAZgRnPXnpgZ65qI6+VDW4XOWDseuPS7KSCR/wAXQexz2FZs9T3pUeppSmlKaUppSmlKaUppSuNMQHIshs/4jDzY9PVxtSff886tTKpjfIB9DDn5j/Hyr0HBB5BBByOowc8fOqWyYjUkMpcU8gw5yJbamXS2S5HLqEtuFJPmNKS4oOtLBQrhHb7QRxuS4MU10EUhpDLCzAj9JYg/PGOBjBB5qeqdyq/cqDk9eR71Fm7me0222I22X3ca1nQ4S6+DGqaCtVbX93c3drDoqGho6xL0dM22vLqwg1kBh2TFjqky2jIlR2A46jGhjeeXYrFdxOX5OwKoOT9O3b6Vfkk8tScOT22xmQD2JAPOM9Of71qVeMfenx85J4rN4cewfa/GtqNjcgt6+Bi9VvNSqMtG6VPt5WZHKyz5jFcqnOws6z3DLFciFTxX3MetoFU3KkVVxkUefIfndja6fHa2zzTtcXQCrK6OWhELDb+SRmN1DYDFMDAz1Gajt1NevcNF5YS3Z3SFHXOCBktn9Qz1Kjo3HTIPC+GRB8RX7W1GZeIWLDw/GJlPvRjmw0bE8HjUeP7l1t1mCMnyGxucqhTX3rlilfgzLHb6JkURq2XXuSprVjLZcaQvA8SvZmAraMLgq8JlZmV/ILDaiKhyR5mQCo6E5OetZejxT7xNcZjDecY0VE/OCAhmZuuEwWJHrJGRjqMpebvhS3AFJ6VKPJ/B9U8dxyT7889vceuoKQDkHODwffHQ/epEQenQ/Psex/59Ky6fClpUxtqty8gU10PXO4bNel3js7EpMcrVNBJ78huXaTknhR4PI7Hnnp3g2NFsZpV3ZllUEMQSNsee3HtwKhOtsxuI0Yk7IzjJyPU7MT8iTnPv1rKjqZVpaaUppSmlKaUppSmlKaUr4fT+w/uf/f8A876pbp/X/wCppWP/AHRRmETENyUbdohu59Ex7LhhDM/yxWvZgxW2K8ajWCnloaTBkXSITExTi0JRGW8tTiAkqHF7qOOPU5YpiywLdlXf1BwgkySdgyDt2sdo4DDsQan0W9rWHyyBiCI5yeW2AbQR0OMdyR1rGtkjfiN3Drm8V3xxDcSTSVWLW24VhO26rqHCMhi7tYJb0t1t1jOLW2N2uRVV/BmJS3k0WbPbZgt5jXiknJchVbTcvYebp8DFrN497s0SvMA58sj9e2TlATwWBB/cCecsPsIlVmcRpKrJyFkBGUGRg4IBGcHk5wM1UncvanZnM2zuRu1tH4v9zNxLLNqJm3yR3b/MMbusMlQMJXXRLOownHmmcOm0GN47E/ZyTklNjuRy7CytX40OxXOfVGrrq3N1GPKtfhI4oVyrGSORpQWBCLIWztZjuIGdnI6cil7aB2Xz0uJslQNiSRhQR6s5G0AAkk8bsHHUCq3WUfFq6vwCgo8Y8aFht9t6c0qNv8cx3C5GLzdmptQiJWR6S5sVR4uR5W/a1diiFikm6XMg01N8wzYuuSY0iU3ameUG4lLWKNIYmlM06Tq6EgsAjHanl5/JK8I2Cp7n0IAIQfim8tJ8NEkiCN8YU7v3Ow42n5kAE1MFc9duYjQ/tDBtq+1VAHzMXIryJkV+2gvPGGq7toVXTRpNs5CMd6elitjohSVLryZCoqpciOSbDM6xMjLu48pdqZIGRGh/apyN/wChydyHbWYJJDEpdSWKYBYHzGGMIJSRkyEcEDHPGPfYV+GvTfTPC/RTFNqQ7fZbmlo4pXYOobuXqyM6gDt0rjwGzyOOo/nsddX8KIE0mBgSfMlmfOOPUEB247AoOvOS3yxB9X/9c6g5CCNc/wDxgnPYEE7T8xzzmr+ak1a6mlKaUppSmlKaUppSmlK+K54PH+e+qHOFJ7jkfWlU/wAoaEbJshZHCem1mKCR37PPF1HPP5Svt69uP5a4/rabNUuwOAZt+M5/Wg65PGdoPA9/ep5pzFrC3JOSV5+wCjP2FeCt0haVA8AlPHP478c+3btzxzxrTueMA8ngj5Ef705rPRQxwR+0nr16/wDQj7VAuWj7HTwD3I57AkDqST2/hwf49tUGQrwXYArhcZwCOcd+mCM/LrWSmOScHAUKOoGcdeuTyTz361UjNUpV8yAhI/WtPAHqD34T/wAxJ/qee576xzJI36nYnABGeCB2I6f9hSThgOB6BwBtGSOTxxk8def6mqrZLG6nlK6P0LPUeefRRPBHPtxye389VqAIxJk5KNu+gznA98dMDOffjFphuGAMnqo7bu3y6468e9bHng1pvoPhj2ar1JCXFYbFsHuE9HLtrKlWDhKSAeeZCeVH9R5PJ512vQYRDpGnqBg/Do55zy43E5HvnNc91Esb253dVkKnHbGQPr0Iz04+fNnNbisKmlKaUppSmlKaUppSmlK+H0/lwf6A8n/tqiTBUg5544+/X5Uqpu5DL0bM7gR22lodTDkEOrcQsuOxWi4Ur6VpUFLQojqCUo5IHbjp5P4ojEeryqhOXhhkbJ/cV7YGR1PHz61NtHcNYRBjjYZFyecnfxj5AcY9uw4NRRayJHQsKgSUnpUQpt1h4g8+oCVpUACe/HJHI99RvDBvUh25GJCwKt9uo49/Y1uY1Xh/NQgoRtAJPU88DH7j/wDlQNl8stpd64k/shfIDCFDt35HD3ccdz6EA9x68YxOScnOGbHfHJ6farqAfmYO4Apzg9crxz/f6mqoZZKbcD5EacClZTyYyQOxKv8AjD7fySek9+R6HVJL+ZGBt2E45BzkAZJx1HPHcH7VWQCckZ4xk/LoMVW/KDHWl1tTUoKWQlS1qaZCfNUG+UFJU5yOon37/wA9Xo2JYJwRxw/K7cgEADOCQfoelWnZV3gDBUHkAcHBORnjP15z1HFbRe2lNDx/b3CKSA0GYdViWOwYzfPJS0xUxE/crgdSlL6lrPA5Uongeg73ZxrDa28SZ2xwxqueeNgPHyGcD2HHauYzO0k0sjnc7yMztzyxJ555+le31k1bppSmlKaUppSmlKaUppSmlKrxuvjl67eNXVVWKnxHa9piV0KWHESY7roRwG0OeWlTK0jrW2ptfT+tKx0mBeLdLuLiaO6t7aSSNYysrx7WKtgBSUALlO7sBweM1JdFvYIoXtp5xEd7SIzgeWqlNxHGCWLftHJPA5IqvV5MsIiFJfobNKieg+UGJCQrvyOzzbnAPIJLQ45TyByNc/ljkixuik/UBgowO04yR0yQOg+XPtUoh8tvWJo8FDkltoHJx1Oehycn646VAWZ3DADgeiWiDwe3094n3546OoHgkA/7vrzwdWH5APlyZAJA43Hj/hxu++3GDnpWUInA4aIhivJfjaCCSCP7Yz9KqLmeTVccyA41ZBX3gJTCIV9wI4Ul55ogep59QDyfTVlGdmX8pwpJBZlYAY9jjGR3B7e9VOAhHqBXaDkkA5zjtx9uvXtUH43iG5O72b49jGAbY5rlDMrJKePd2DEGRCqaumVZRVWM2xuVxzW1bDEJTrnzUqX0BSmkoQ44tttW303Tru6uoBFazsjOu98AoEDBixIGMcHqeOoPUjXXt5b28Nw5ukjkaNiqKQ7uxGxQiBtxw36iRhQetbVMKM1CiR4cdBbjxWWo0dBKiUMR20ssJJXypRS0hAJUeonnnvzruSqFAUDAAAHOeAoA/wAYx8q5uTuJY9Tycgg5PUkHnmuVr2lNKU0pTSlNKU0pTSlNKU0pXwjn8/0PB/uNeEZ9x9Plz/vvTGf+5H+K4kiugSwRKhxZIPr8xHZe5BPPBLiFHjn+OrMltby8SwxSAYwHjRsY7jI4PfNVB3X9LsuBgYY8f3/010LmC4Y9/tsVoHeSVHzKqEvkq46iepk+vA5/Pv76t/AWeCDa2xz7woR/cZ/v/birnxFwBtFxNjp/5jZx7demOMdMdq4ze3OAMuqfZwnE231nlTwx2oLqu3T3cXDUv9PbsR27emiWNnHwlrAo9hEh/wAg8fTGMV4Z5mGDNKR7GRiP6Zr1TEOLFbQzHYaYZbADbDLaGmWwPQNstpS2j/pSNZIUDoPoMAAfQAACrRy3JLdQep5xxg/L5VydVUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSvyskJUUjlXB4HPTyrj7Rzwrjk8Dng8DvweONeHpxyew+f8AvftXoAJAJIGRkgAkDuQCQCcdBkZ6ZFU2a8T+W17mTQr7ZPOnZ0OVauYq9jNNk9nTXFO02z9IkXFlPxyvVTT5T0lhyxhsxp/0+AJklozFwlxnY0uvXCtOk2l3ZZd5tzBDcyRyRjGwyO8EZR23BnUBtkas2WYbD31vwZ0O6XRrjS/xG8NLa3ENmmtR6vqGj2upaffSMxvYbKzttVuk1CCFIp0tZ3nthc3XwsMggS6EsUpbXb/Y1udX47Kg0mWVcnIVWDDMefjN6mNCnUyG2bqFaWS65mJVSYFuizqBGs1xpT0mqkENJ8xlK8/T9Ygv0gZIriN5vMAV7ecBHhAEqSu0arC6yCSNUlKO5TcFwwzC/Gn4Y6x4MudVhudQ0O9i0oWkjyWusaa01za6kzyaddWVqLpp76G5sWtL4y2aTxJDeR4dwruP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAgMBAAAAAAAAAAAAAAYIBwkBBQIDCgT/xAA4EAABAwQABAUBBgQGAwAAAAABAgMEAAUGEQcSEyEIFDFBUSIVMkJhcYEWIzNyCRcYJDTBYqHw/8QAHAEBAAIDAQEBAAAAAAAAAAAAAAQFAgMGAQcI/8QAPBEAAgEDAwMBBQUGBAcBAAAAAQIRAAMhBBIxBUFRcQYTImGBMpGhsfAHFCMkUsFCctHhFRczNERi0vH/2gAMAwEAAhEDEQA/APv4pSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKU2B6nVKfr8J/IE+gr8vnYXUea83F6scAvt+Ya6jAUCpJeRz8zYUkFQKwkEAkdq1G/ZDMhvWg6ZdTcTco5llmVxnIFe7WIBAJB4MGD6HiouOIWDLnfZrWX429PC3G1RWrxAeeS61zc7KktSFcr45VHoKIeIG0oPbdd/xzpJuiwOo6NrzEqFTUWnG5csCFdjIEY5PYHgbf3bUld4s3AgyXNt9oHYzER5M4r82PcTMFyl9uJZckt0uW6tbbMVanYUp5xvfUbZiz240h5xISpZQ02tXTHV10/rOOm6503V3RYsauw90syqgLbjtMH4XVGO7lYUiAZNe3NLqbSe8uWbip3faxQSYEuBtBJ4E57VOgQe4II+Qd1cVogjkRXNKUpSlKUpSlKUpSlKUpSlKV6X5DUdp155xDbTKC4644oIQ22kcylrWohKUpT3KidAevqK13LqWke47BVRSzMxCqoGZZmIVR8yQK9ALEBQWJMADJJ8QM1UvMfEhMh3i72TH7PAehNBUaBkL01SxIecQg+ajREtchbaStamg8vTig2pQCTyr+Yda/aF+66i/pNFprd0Bjatan30FmIZd9tCvxBezGBuK4Imuh0fQXu27d2/da1uMtaNsltsgiCDG0iZnnIxxVRM7vstMCS/JfXLya7ttB+6zXOtd5sKc44xvbXQUpK2iYzC+YpCAWmY6EaB+Xda9oNRatObm27rTsuMbxVtVdtXHkBiLZZlcnakvtWBCAcdHpengsttlVdMCygqqiGC4KqysSzCJBMEd8YglklG5KT1pcK1NQWWYUiKzGbXHkeSKm0fyihwuvrcSlDyuol9l4EbQhHTFPp+rprXLvet6A2GAuWrenRoe3O7aSJLMXAkMdpiflYajS+4Uolt75YbVuFmdiDyNjMVQCBkLLECDAFTiDkuQWe9tXi03yZEvMFKpEMPLZlMIbfUhSizDdjvoW4polh1KVdVLTpTy6KVCztdU6jpNaNVptQbGrtq1yyb21pDqQIGNytgKJJJz4FV13T2HtnT3LCtbYbWIEFRMyWLHI5kEkAE1ZbBPEtkIudmseTQoM5iVISq63V102+4W6BLWhfn1w0tJS9GhpcP0pjsqXHSdLWtvne73oX7S9W2o0fTupWEuEll1OqZyLltSVh2XvDMxMjKkKAIrntZ0MWrb3LDM4Am0iKWUhSQw3mBiJABJE57Crtx5DMpll9h1DzT7bbrTrSgttxtxPOhxtQJCkLT9SVAkEEGvtFq6l5FuW2DIwDKyncrAgEFWGCDOCOa5wiMHmvfWylKUpSlKUpSlKUpSlcHfbXyN/p714Z7eR905/CvDPbyPunP4VWTiqMkuD8y0T5bkSFIddVa2WGnXIL8RvppQ/MbjPNPSZDbhUtxouEfcDYaR1Obg/afRdR11u9p21CWbN1SqWiwCXkPC6hVMuBBwoJMLI83vSbumsMt73Je7aIuPuVWVjJUAzwrCAe4A8RNdpGCNichKLiHYaVJCrg7BdizIzTCGip5xxKGgp54mSoIZQphgdEBKykrHy+57JMl61v1hfTj3hu3HVEvWUtAgBVEH3cS0AEKqFjCgx0o6paIdhbG/eQiBW2kk4tqGAzOB6H7IBFdxbOHWOTpb86Xly5aEMMpTu2IaW2HkuqjHmbYHVQ0yUqYHSA2nqNlaiamaD2K6c946k9U1OsQDciW0RgpvqTbdrqAl7Owbra7mQGGBBInXe6tsNr+VFp2uS0XpJ2jZc+FmgFSDISTMxI5isThnZJEaI9ecjYtb8Fx95yMzESVCG851A1KW9FWUulQSovN8gCldlFSia2aT2G6ba05Ot1G82bjXfgCqSpJ2pdJ7/DJc/ayGJgTnc6yxuTat+894doE3DuKzhAqnIBO4giMEmuF8Lsem+aemZo/LjKeSpKGojbKIrSw2ltmK7HjxEMLAQnpOp51BbieXZSgV4/sF0/U3Uv3OpakWd6lUQWLfu8b0CXiRtO4AhEbGDjisl6zstqp0lliyMWD72KgGDvUiRIzBGeAM1ja88M8bYmP3S05fdrxkUKdbxLVeBoyLa0tIlQmrhFjNeXX0VrWUKZktKeQGwEpWpFQL/sb03Tn950vUdVqNT+8Wm1Jv3CFW1bf+Ki3LYcFmSJKhxPaQQN69VuMq2b2ntpYKMyKgKkM3BCMFAlh3APE4Aq1Phmn8QYlzk4/KvhyjBo4mqiyHrQ5EdsTzn+5i28TCtXMVBZQGFBLS0pLzDTW1A/TfYzT9U0ovWb2vGs6crEaRWsLbewhkpa+G4c7QpO1fdgBoVCxnl+tv026Vu6Ww9i820vB2o5iN3u/siQCzbVktE4q7FfQK56lKUpSlKUpSlKUpSlKViXinaok+LZJUpsLXAuMhUdfUU2W3HoxRsFKk7JSkgA/O/XvVL1XSpfOnuMis+nuM9tizKV3QBAUgNkcOGHPrUvSXXtG6LblPeABoAO4DMGQY84j7zNYNuFstiSt9xKwoslLikuyCFtA860Kb6pbWNcw0UbIUpOwCQaF+mWme5euWrbkoVaWb/pyPhiQvgGFkqWBJBIMkXbgAUNGQVwvOYMlSZHYzjjg1jx7FfN+bZXkkuEiaqNKhtY+hmzzI1vaRyxY0iS4mW7IaUg6LjjEdTX1MxylIO4I6PYa1qLe42bbXLTp+5kWGtWUXaLJJwxYkkOoCKhCgKwkTG1ht3LLm17xrSvuN740a45kshUCSrS0HHaDUTyzDIV1hS9PXRyS7bX7ZyyHY7apDL6DHKpqnIUlMhCElbjSnkPobUXHUsFzpqTGudLs3BcKNqAotm0EZ4JW7AZzuBLG2EG0mSpaVgEzvs6ttPctlVtKgcXGIG8gpJCqqxtDljuiC21ZyBEFnwMatuMtMMyZNxsuMCDHZZT5ee65It3IzGQ6Ax0nJCV6cdaUAlt4hYQ1yNhHq9O0y27Wn/mLlrTbRbm4GJZF27nKQGftBGMkRzWZvXrmpa41sW72tDbmuKF/hswIUDi0qTjALRO4wK4caZiW1ZitJjtBpySW4yUMfUvmkOkhpI+txZW44rZUpwlRJJrxdDo7atbtq1tQGJUycksWzuJkwRmT2mMVg+oNy4Ud2d2iT2KqSuGECIQ/ZicGdxmr/AHhytbEHhfaJrbQQ5fZM69PPFa3XJCpboS2tbzpU44lDTfTaClKQ02AhoJRpI7boVlLXTrOwAC4Xuk5lix+0cmCR248AZqk6g2/V3TmFaF5EYHb/AFz+dZ4q5qHSlKUpSlKUpSlKUpSlKhOfwm5WOyVqTzKiPR5aAFcp5m3OX72jygheifz0fXvE1qg2HbukNIwYBmAfn389xis7TBXBIkGRjyYH6Pbwar89sJHNEU6eU6CHGXOx76PUcZ3v01ykkarnjccgiSCcMA0CJ4zHyxPbiptQ963RGZ825t22W3NnBlEl4JYUpxuOlaWG+0lWktBRSlIAA5jvudjQ2oCjatn/ANWhV+LbAyZzkEyCQeRitkOwALEjkAkkAnkx5rHOXX5yzPwy8m7Mxpi3og6NkmT2hIUgutOSH4zTyYiG0MPNoW8pth119tklT3QQrwkTKo5IGClsuVkd9oMfWBg5xREZ9210XaNx33UtyBj4Q5G48CBxI4JEx1TUKLbH+qhx5mW+Zr6xb24wW5JLZ6rjSGmkqWrSVLcWkuK7FawR2h7gjwlt7Z3BmKqFlyZLSGye8+e3na1x53s7FlSAxJJCqsbQTwNvwgYx6SOnnllUV1lqPIUp1tTaUFLSNBxJb2ol7mSBzg9kqJ9gTqor3VuXLo+IEldxwCQ524MnPOI9MmsrdskC4pAA4yZCzuIEYzJIzyT2rZlw5sjeOYJiVkaUVot2P2uOFFJQVHyrbqiUkqIPM4oHZJJBJ1vQ+h6aymn09mzbnZbRVWcGInt8zVTeffeutnLtzzzjufTmprW+tVKUpSlKUpSlKUpSlKUqOZc0XsavKE75vJOKTobJKFIcA7d+5QB+hNab4Bs3JggKTnjH0NZL9pf8w/Oq4Fe0hXLoqCfp7diQOx/T8q5NiFIDZliJOc5M57YqdUMj3xm5z7qxGebdbt0kwXggjbUpCUuONK90rSlbZPyFDvskCTfsBLKkEEgkmO42iAJAIgkiOKzG5AC4Zd4JQGCWVTt3DPEyAB6/OuuuzTT6VNPpS4hR+4sBQUd7A0d7JIJGu+x271WOYjMc/Lx/qPwrZA8DiOOx5HofFQe5to5VMrH0pA0g70AjWkke+uX0J7a0RoVGctJhmyDnccmTznMcZyKMJBHkEfeKizbPm7nCigaVJmQ44CexIdfaSdAH437e3z3Gqzam7bBgS6CYmYYRM8/Wtgu7LLW9pJgwwI8eoP671tQjNNx47MdoabYbQwgfCGUhtA9T+FKfevo1qdgBMkfDPmABOfMT9apWMkmIkkwcx9a99bK8pSlKUpSlKUpSlKUpSldRfxzWO7gev2ZOUn5CkRXVoPqPRSUn1rXdG5GX+pSJ57E8d+KyT7a/5h+OP79iD86q4t1SYgdSOZXQSvQ2CVFoK0PcEn47g1y1vNxSR/in8T3I/Gp2/ZmJ+X4zwfFYUxjFbvaGp1yWmN9pXW5Xa4LlP+WS02ZDq3ICpTjrvXZjIbc8tI6SypKI6XFoaZAKduqvKSqd7cgmeTkHHn1Pz8UJL5B2yB4Mc+cd/FaGeOHFzxvcZp38ZzMhzzwq8BuIDTrvBpch6HfLnkM63Wi6NwMcyubwhfcfxCBxGuFqReYEriWVXCZEulqxbCnJNxRdYNx8s2bPu9x23bhP8QKQCoEkRAPPxcCBHzE6WuN2+GJmQTOJ+nefnithPgrzbjLmnAW13Dinb4c5VuyfIsc4e543dLLMd4scJLBMZtOF8UpkCzzpTNhnZVHiT5gsslwS48JEFS+sVeenVmsW2t3ajSoUECDgn7Sc/wCEwJ+YMVLtMzIu7kDxHOfvq6GCQvtDO8TjpHUQ9frclYUAUhtD4dWdfiSlCVk8wBOj3+6Kx0Px6qzbABPvFIODncBEduBJmsdQYsn/ADf/ADWzEdwDrWwO3x29K7u3lQfOfSqyuazpSlKUpSlKUpSlKUpSlK9EltLzS2FpCkPIcaWCNgpcbUhQP5EKIP61i3b5mPvBFJgg8wR+dVIQgxmW4yzzFjmaPYD+k4pA3on0AAHc7ArjnJV3XkBmGQZ5PP8Ap+fNWCCQJIHwgzz49KxfxK4i2vh5b7S5Kx/K8vueRXT7Gx/DMFsUXIsryKU2yJVwRbrXPuVmtrkS3QT5q7SbldoMOLEcSpxxwupaV4iG40AqszJJAA+pI+f3VkwCqSDuI7Dx+P8A+V8XfGTjj/iAcV8Ov2J3PwncM4jtuyWxYdwo4S5ffLxe87zPhPkGfwDwvwe44sxdGLTlsFu7vM4dlt8vE+2yJ8q1rxK7vQFN3GNKtksae26Ml0k7NxZFBKnMgTIGBgTPfgiobNdcAC3EYM7gfkRIzx6f3+l/wRwstsnhvxbHM9kts5tYL1mFuynE49kkWCDwvub15Xef8qLXBlzLjIVZcEhXaLb7PPXcp6J9vkMPR5ZjBhiPzeuZPfM1tYVxuZiDLE4LMeASe1WFr4jat8Aqc4md3ET27T86vfwYiolcTseBSkpjpuMwnWiVMW2Q42vQOuywjuOxJB9RUjooJ19of0h2/AYJ+f45+nutUJYCzMuDkgH6DvxWwT0ruqqKUpSlKUpSlKUpSlKUpSlK8Vfh/uH/AHWDmFJ/pyPpSqTcWLZltwxjiHZsBvMPG86mWfJIGHZBcIyZkCx5M6xIbst0nRFMS0yYkKeWnpDBiyEutIWgsOhRbVyd1FGouhyVXe5BwJ+L0g9/75qdbBKIQDBUZyR+U8frtVF7rw/8SU5pdyzaPcM/vGICyXHh1NxfiXi+A5Ja8nlOPQ88ubVwt2M41iV4tkizKjN4pYM1xN2NKWmbbsnWy15K5HSSqcEGSRkjgTxwc89xWcHwfuNV/wAh8M+JWe62nLrN4K86OR26PZcpPEi2cccKmcX7bnFtyWXcjebhHXml1tuXZTZBLnZVZZQl5DAn5NPftz1viRJcu4r1vqGxtuWxzuyBHYT8Q8fd91ZBCZmRgR+vl4xWVOEeF8QrFmdxk3rhtl2HMOX7L7nkGVZL4hHs9i51Jmy/IQcjbwDGpzeMRsgyGBb7dOmomY/YrbiUREa02NuW4ytmNB1R3BF3KxJ4SQYkDIJP3x4kYrK0Cr7wDuGADx2PHM1sS8PcISM8lSVJB+z7FLdBH4FyH4kQAHW+UtvOAg/A1o1ZezoL626TgWrbQRxJEANPnMRFY68sbSMw2sLm2OARA8yTyeD2+Rm7tdrVZSlKUpSlKUpSlKUpSlKUpXBGxr9//vWvCJBHkEUqsWWtFrJL0CkgKnOuDaeXYd04CPTY+ogKHrr39Tymv2pqbq8QywM8MGY5jzkeuKs9PmyD4IUQIAgHHrifyxUPf+5+/r8dj3/aq1mJx2nFbajk5I5VbT2Pv20fUdx8n17/AJiotOKhFx0QeX2OlEaGiAPke35VpdhIIPAknxGR68/SK22UDgsZiQV7SIB8Tkz/AGrPHhuhkzsvuBT/AE2bTCbVrew65KeeG/TsGWSRrfcGuj9m0X+YurJLFIJJjbMEgYH9WZnAwe8bqRxaWREliO84C/jPfPirYV1dVdKUpSlKUpSlKUpSlKUpSlKUqt/EFoJyqfz7bU6xCcRpXIp1Plm0KUNEFSQtKk70QlSSNgiuV6om3UuzjD7SpzkBYyBwR4OastMw9ztBzv3RntuBz8sCP96x6+06N8sh7XKrSSlk+g9SVtFR0N/i76qoYA5W4Rnuvk4GVnExP3zW6o3NQ8lKj5pewST/ACmdgjf/AIaOv7dEfB71HcERsfdzOIjiPtAT34kYrzJZf6c7vwj5+eKhFx50he3VnW1EdNkc29EnmQykpJ3r72wB6gE1DbcgMPuO1iD4IBiQQPXgznmKnqq21hRAA4Ek4HAkk/Tz61aPw2MJ/g68TAg7k5NMQHVEkuNxYFtaTpWyFIQ6X0jlJSlfUT94KrsfZ3/tTA+FrrwfKqFKQeYBJPPMg5FVPUj/ADG0H4QilR4mTnvPr+VWKrpKr6UpSlKUpSlKUpSlKUpSlKUpUTyDC7HkbiX7hHUZKGugiQ06tpxLQJWlBKd8yUrUpQHYfUre+1RNTo7Oq2+8SWDA7lO1oAIInPwmQSI5ANbUusmATHjtJIz2zUDkcHIh/wCHe57AOgAsBRAG9DaSCSN9j/33qrfoSEymouLkmDBwe0x24mPn8qkLrCJ3WkIiOTP1kx931FdFI4GPvkkZVLb5uxIaWpRHvsl3X/oe3uN1oX2did2rdp4hQsc88zyPHfzjMa5R/wCNaPiS2PSIie/pXX/6b7TLWFXfJLxJb2CpmIGYocAPcKdV1HU70NFJ5k/PbvinszaLA3tTddQD8NuLeT5knB7gegAnGTdSciFtoh8gTzyYnJ8TWb8QxKzYRYo2PWFh2PbYrkh5tt+Q5KeLsp5T77jj7v1rU46tSj6Ab0BoVe6TR2NFZWxYQrbtk7ATJg5PoCZMZgk1AuXHuu1xyCzGSQInAGRxPp2ipNUusKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpXirsAfXuPfX7n02Ae+tin6/XoJOJOOK8aYx/v9MRJ4EwJMkiqYK8SWf2Obl0PJ+CudzpEG73yHYUYhiWUzbeI1ml3G3JXcb5JjutXSLcZERmbBu9ltUZmXZvOzWbYp5iNFm8wvXdXafUJqOlaxyl28toafS6h7QVHu21D3h703d7ItxLtq0im0wYICNp/QP8Ayf8AZXqml6FqejftF9mtJa1PT+majqj9e6/0PT6r3uv0+k1T29J02xfW5odRpLd65pdXo+o6y8+m6idLpbmu2Xb17T5R4ReIGxcWLVj8qJjOaWO43eVe7XNgXXFb7HjWK8Y3/Ku8G7XV+AxCgrEtuQxCakLRMc6SETIsKU8iOZ/Tus2eo2rTrY1Vm5ca7ba1dsXV9zd06/xkvXNnu7RV5VQz7mMSqtKjj/bv9lvU/YbXdUsX+s+zvU9JoLHTddptVout9MuXup9P6xD9P1Oh0NvV3NVqR7l7VzVPZtvp7e9nsX9RYRrw/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAICAwEAAAAAAAAAAAAAAAUGBAcBAgMI/8QAMhAAAQQBAgUBBQkAAwAAAAAAAQACAwQRBRIGITFBURMHFCIygRUjQmFicZGhsVLB0f/EABoBAQADAQEBAAAAAAAAAAAAAAABAgMEBQb/xAAiEQEBAAICAgEFAQAAAAAAAAAAAQIDBBESMSETQVFhseH/2gAMAwEAAhEDEQA/APqlERAREQEREBERAREQEREBERAREQEREBERAXDnBrSXEADmSVVuMuKJtGiazT6Lrk0gcN7XDbGccsjqefZaq1DWOK9SgdHanvuiw4SQsaG/CeodtHP9unNcfI5uOi+Pjbf1HVo4t3fPck/dXDiP2oQxG3V0qL7xr3RRWXHc1xHUho/onkuODuLtYuNaJSyesxxa6WVvxOPgEeP2WodQ4b1mw18nus7cj7pwj6Y5DcB36fRW/wBnFHU6DJKtxloAgP5sIYHdyvJ0buRt5GOW22T8T4n8epyONx9XHv07LW3ftWyI/ikb1+YNUvplr3quHOLd4JBAVNb7y+MMHMd8BZNcWIhuALXt6EL6G14XS6IorS9Qklf6draCflPTJ8KVSXtAiIpBERAREQEREGu/aY0aeYLAY81ZQI3NY7bteXANdy/fmtb6F9tVtWiivOjjbsc+SCSTdIQDycCB07YW5vaBQk1DQXwwuDJDlrXn8JPQ/wAgLUduG9d1axQqE2J45fTnsPaA+vG5g+Q9xkFcm74y7dmiy42Mnh/UG8QSXLU1i6yJr2xtgLtmwnpgt65U/cp6jXsVDRbmu0/eulmOR/6vfQNDdplCnUmmNh8R3OlLcFx7KfkZudG3sDkqJhbjPK/KueyTK+Ppjwsl2jGW9+uV6EFrxvcTk4WSBgLq4ZIz2WrBJ8Pxtknnc5oPp7Q3PYlTyiuHmYrSv/5P/wAClVrj6VoiIrIEREBERAREQYGvHbpNh20v2jdgdTzVAdaqVrd+eesIJIuRkLcGVgGcjyAtj3m7qc4/Qf8AFRL2lVrt+nclDvVrZMeDyOR38rHbL9mmFn3ZFSWC1XitRHLHs3NPMcishrWH4sf2sY1nbvgADew/zKrmucY1dNtSUmxTzW2Ej02gDoOZ8kDI5gYUdCyT2mMcGxhr3Htle7Tlm4jCgOHHt1GL3+LDmyEgjuwjq0jyDyU/N8MfLyB/apO7O6myT4izaMwM02EAdQT/ACVmrwot204R+gL3XTPTIREUgiIgIiICIiDiRu9jmnuCFR2yenWBcMub8OPJCvKpeqPr03WZbL2xRQlznOd0Az1WeyLYjj7xUlbCQJHMc1uexIOM/ValuXtB0bTa40eWjBKwNisufaOJXghsgl6nIdz3DnyHUK/X7UFx0MdWS4auSbUlPIkjaWnbn8WCfA6fktaN9m7fR9AaFK3TZZGPkl3tdPsBG7A6jIAOOuSVGKWzOAm0hw+ySkyEPllkdYkhHwzTbiHyA9wSMg+MKfkbuAH5qt8NQu09wqChbbRbJsqzSbGhseBgEEhw55xkZxhWqEbp2N8uH+qt9pWiNu2NjfAAXZEW7MREQEREBERAREQFUddgjluTw2I2yQykte1w5EEZVuVd11gF3J/E0OVM/S2PtAfYOn+nIwQvDZNm4tlcD8Py4OcjHZdJNCozOI32w9rAzf7w/OM5GefM5581LNePK7O5twHAHysu1kTBpFGpcM1eJ0lpzi/L5HOAcersE4B/PCmdPY736EE7suGSsSTMLB6IDnOcM5PM+SpPSB6l9vhmT+/JTj7L6WFERbsxERAREQEREBERAUFxGC2WF+DggtU6uHNDhhwBHghVync6TL0prZGkZ/6XcPbjqFZ3UarjkwM+gwuv2dUzn0h/JWX0r+VvKK5vbjPjwFJaGC+09+DhrOuPKlWU6zPlhZ9RlezWhow0ADwFfHDq91Fy7coiLRUREQEREBERAREQEREBERAREQEREBVpvEk0T7LLdCYOY8hnptJBGcAkn6Hl2z4RFnsyuPp3cHVhttxzjP0fXa+pMi2MlZI8uG0tJALevPoOeRz8IiKdeVyndU5unHTt8cPX+1//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAwEBAQAAAAAAAAAAAAgJBwoDBQYBBAv/xAA1EAABBQACAQMDAgMHBAMAAAAEAQIDBQYABwgREhMJFCEVMRYiQQoXGSNxgZEkMkJRYbHB/8QAHQEBAAICAwEBAAAAAAAAAAAAAAcIBQYBBAkDAv/EADURAAICAgIBAwMDAwMDBAMAAAECAwQABRESBgcTIRQiMQgVQSMyUWFxgRYkQhdSkaFisdH/2gAMAwEAAhEDEQA/AN/jjGOMY4xjjGOMY4xjjGOMY4xjjGOMY4xjjGOMY4xjjGOMY4xjjGOMZ5bWbjF4Ouit9vrczjqqYlgUNnqb6qz9fMbJHJLGHEZbFiQSlyRxSyRjRPfO9kcjmRuaxyp07uxoa2H6jY3qdCvz19+7ZhqxduCevuTOiduAT155PBzt06F/YzfT6+lbvT9e/s0601qXp2C9/bgR36BiAW46gkAn5GV3dnfVw8Oev9Hc5Ch1t/23oaKGw/Um9VZ6fSZ4M2uJQSQGbYyzA5yVFm+RJLGsMs6kNIXtNOHlePFNFXkfrn6e+PfUr+6/u0tUrHMNQI7MEdiUgV4HttJHXDzkgRskkicsoZh3TtLOl9CPUTbQ0rNnVJo6994xV/epfpLc8TKXeaPXhXudY0HJSWKGWT5ESP1brCPZfXAvYTFs+vuhKW3ysejeJEFpN3aA7C0zzXpEMX8VJmbTPUVpZRo+xGgOsjghQ0bEQTJKhMo8W2P1JbGSX6jW+J0zrDbZUXZbqSrtJacfAMv08dOSvHLIA86ASzRrCjDmRw3WUa36ZYI0FfaeWWIr516zvNR0yWNbXuspZ67ST3oLtmOvIyVpXgrLK03ZljWMxe5O/A/Vg8MdpX5hbTsQzA6XQjzPJxu0zl5X3tCWLM4UkSzUcEgKRFJiJ+yIAIJaaINKa2OKJr0ZKFb119PpddX2NrY26KSR+5ajl1t2dqChijvZepBMn06FXb6iL3E9lGnkEaK3EQbT0X9QNZcuVV1Avx1ZQkdulZryQ2gyh0MPeRHDBWQSRyqjxyMsZ7McsPodBR6mmq9FnLavvKG6CHsqm4qiojq2xAKjSUcsMwdz4CIJmKjmPjeqL+UX0ciokr6/YUdtRqbLWW69/X3q8VqndqTJPWs15lDxTQTRlkkjdTyrKSD/AKH4yMLNazTsTVLcE1a1WkeGxXnjeKaGWMlZI5YnCujowIZWAII+Rncc7mfDHGMcYxxjHGMcYxxjHGMcYzxGo2VbRCHPktKuseIJOTKTaul+IdsCtc+RRGJHKTGsfv8AR0c8bUf7U/mRV9MNtt3S09WSzbd1WNXbqkcjs3RSeEVEfvywC9V+48/HxznarVnnljTozK7KvwVHJbkKCzHhQeD9xBHwRwTwDRv57+JfY/kTiq3sGLs7Idqh56ms7SeptttBBEMNYniEmUnUgcWcBoA7bQwBDVc9rZX9edO0VKtkw4szpG1/9RfArnnWuoPFtW3cusiTZz6u3dfmSZZhZSHWSR0alVZZFAgcSzxxmNBDKjIBI1ivSf1J0fg21kV6UulluMtSC5BQ99VcRyQiztTNblsyQ12czJHDDKA7GVYzIoArl1307vITTPzFIBcdG1EW/mDfSRVfblHTTZ3LV3tcXX7CWjOQe5qljjqCq5lNLY2CW9JMMnrLLFPFoFD0d8pXXUaNuDxWvFJfewlavsfcio01aSVI9jM6K9q0/MUgsD6sxzQmJOqmN45np+tnpxrrNy+snlV21VrTJZsWtesgubCdev1OtWx2kqgE2UKSJGjQ2Ud2HV425M79OLbEO3NDF2f0rV6gUFgkgC9kdW25OtsoiRfhqqfK1J4hVMBCTFNZg6DRWdfZwjtkr2CmzK+OTW5fRryrbHb17t3VaqOCSOan7HlGvtybm5BNG6UVrwfTrUocqZ+9uWARShYxBOWZjsLfqK8A1yaSwumuX0IeNkGn21dNTDIkiSXrdywZkuXZVYQPUp15qznrL7kK8Fe9oPpX+R1NsANLb99eNcaVXxXEl6Zpdba3H6vXjmOCNJDFpxxy2DI+GEqWY4Q08dF+6nJJFSZ24Q+jG2ilFyXfeOwXIpEkjlaXaX4yFjRZkmLRxHiSPsfaaRoXbsxDMXzTL/6hvALFSxTg8f8AKjUtJJC1OvX1FSMJI/uD22Z5nA+4lCqkwOzCLpGyqmdMF40eWvTrqvadZ+dHU+Mmr661BZVA6PXXHX1QCeSQVLTfwnbsmytyO20Vhw9mTVhW/wAxk3ysYU2YmbJaTwDzPxqzCdH6j67XQVq8iR6uBbkmqgrtO0ojgqSiaEQnv3LJxIGc9I1Csx1Heep3pN5HUmp7f033VyeaxFIdp/2MG3nkjiWMTS2YIo54pGRSjwGR4iIw3uFeqG5Dxz8rLrYtXN9qW/WN3pa2upBLDQdQ/wAVzUU2m+3SG8Clrb4J7wmfdMUsX7a0KfEPM2EkaL2MmmsJo/Ibktn9v20lKxOK0Esd3Vw20qzu6cSoyTmQo6yBnJjcqFYK0adAWrXvdZq4HafTnYx1WmnEcG2+nFgQBu0LCSAqrH2yFblF7sC0bEAjJ6fvzds1jHGMcYxxjHGMcYxxjHGMqq+p50xvd3hhNX1F25peoOwwM/Z0DLUFrLTJ29FPd0JdpWajNkI+MqKWums2RmVv2lqkTpIlLWFkbErv+oWxS1Xja7q/Z2MFWtXnr2lo25q3etLPVinaT23Q8wQ2ZJkKEOzLwWIVRkoemV+rDsjUv6mttqkkyT+zLxHOk6w2BC8M3BKj3lj5V+8YP3dD9xzVQ7V7U8qvGTVdAeB/i/2Nbdp7rtXFs2J+Q7mcNNhRF2djdXN5QA2EtkKEJSBKAa6vhto3sGgAc9JojiY2Or34De2vqNt9T5JS8h8i8foppKFMxUt6kFSxu7lX37LtRFd68lGIsivJYDSyWRySIwMn29rvGH1HkW83OlqRx0t08MFrXwOLRo1BHDG0knV2a5KTG3eEDn3PkNwGz1HU0v1S+4Y+0rG26n8bLlnUeJu4Oi94YJnn512zBsoKmxyOS0FJoEgBUlglvMV+phQBg2kVawqQNT3vScaOnu0tdNLf8la8oadEuX5KF2Z5Y7BgniqERQGrF7KklmQIXZWHX3A+R9u5PA4LFKOr+8VFu3K8uyopLbEopvB9RFYtxTxsZnSWSNVMLMHiUlVf2vnAPkL40+ZIfjEL5jeRRYnSu66m2wxMHTXWtWRYanZwn29I+itNNY1FvZ1dIap4s8tjYy/fNrs0/wByxMmmiiXoto4qVK5aS2WuGZIFqFBbf37UBkksho3C8dSsrjhiRHGGKseDntDufH597/0pqY/3KjtK7D902FiOKGqkQk9yGBrEKu/YMscfRYvcnb8MisG9f4/+K/m53d1Zp/Khnlxf9UxeR9M0cfCyR7IJcuFqNM+pMJLrJzWDuAp6esWHHk1qNmJCsmmypC1z/kwm5258f1NRre0lAiv6mO9EeytLXt2JqjSyAEkK8iRzyIOQQSo6opJ/V+/4tr9x+xxeNJc/ZvqGjuK1SQ2Ja0EM8Y7rHw7s0hSdpOvUxgL2J6jItr42dqj9HW/R+p8muxNbDlOyc3oRLeEAUa6uzFEKlMqj7Uw0yzdnWWU1eaBWlTmxDw18cCRt+R/sgy360MjeUTUoJSla9V1mrrSdEjImAjltWhGode4BEcSPwHb3OyyAqc1Wq6k7DSbFNDRga1rr7XFkllsRhEmHstFD1jh95I+0LsiRsXf/APDjLM/7PT0x2BRdi+Ruj7KsNkbFlrS2GzAOvKcsxZOr0ZEDdzILH8bEJvs/RyxiRvRQYACflrxBXyq9bIeiltN55jtrrBJRqvEfHkVo5J2irW9o07SxRrJIysfpoArtKjT9X4ZxyMjr1gtasafRV6EVRZrU88liaBFDCGqihah+0DiGeblnTqWccMW68Daz5afK/Y4xjjGOMY4xjjGOMY4xkb/KoBCOoL49yOSKnbIaXIjFk+MKQEwOZz2NY93xMmnFkkVqfhGerlRqLyuP6qNVLsvR/fzQRvI2t4uTqihyajQz15eVIJZRLLXdgASOgJHXnNz8ClEfklOM8drJWGME8cyiWORePkDsVV1HbkfP45zT387ajYDds9Dbzrqn63srOreZjtLodP8ApYJ69daSztc1bVcWjmIDs6rN2ua0NjHZEUxMdmK8kAwOaFyI93n36K+o0fhy3tVtJpxXmqwSUI/o5LMdk1TdiaCEovaIWK7rwnZUZOGZh0Q5cDV6WnudVuorP7n2Um3WrUWkbpfStBaWR6w7RT2YLNftCsqOh6SR9GHwPyz+KGFx9EtB0N3rXZbAZnsC70GQ69b3RGTYWVkE0WCzu7k0u4GgtIZXySDigENcIKGLITNDIQ6Y186Q7jXeVvdvxbSjqL1mazr9VpbFiVWl19F0h+uWed+gktzOfbZOrrFAeWeJCx0yba7uKZX3vjFzZWrOuqpsNmNIyCIzs7wVq8UUDLCIo0RiwIeR5Pb4HIQ5e6k8r9P172KLRdi9iUejzlgURC6Wwv6U2vOnlqxRmRjzoRKHLEHGz4XvgkcN6q6R6u97nLgaHme48Y8+iZfIJ9lRV+mwUSSzwCaxUirRt7oR2Q1/bRCUb2fliCS3Ix+18FXceOy2td4/bp2oFjIQVJo3jijnlcsyHrITLwWAcDkKoHX4AlPt+3ch2dhrbXY3bZU+jq5qS4sB62+qFcJWRklwwxxhxktI/kLjVjmQwIjWQuVjXNc1q/PzryWHb6Xyjbm9DPMh1lhqUsscN1gbTxxIlWwy2JXincGT20YIqhz9roDgNP4vuNVttZrb2qu15pzcrQvNVsCN5BHHJ9khBi+U4CB3ALEqeCoYRgvexMFnMjDsdJqaQEO0nlu3knFxsnLkZAUgQcIyK4owuRrIXQiRQrO5ZGtRir+OQrqKouQQBWSW1baTaWIAO0pMJsRwQN3cAHsqzAMe3DDkctkhrqtpLsJddWpWZGqoKftxx8rDy8YmlMhHSJE5dTK0vRSvJYcc5dD9GQ2t3fVHbPdVJK47P77fj0dJaLCsERsGIEKEJUBHu+YitZJZjoOY+OKOeT52QtfHF8snoZ+mDST0PG/ItncjeO7sN39NOjdB7P7fAoWBQruw6RzxdxIEdZC6leVJMDer8clLeUNRKFVqOujlMYfsV+s4k7ScDqrsyMeqk/b1Yn7gBc3yz2RJjjGOMY4xjjGOMY4xjjGYd8hGOd0h2q5saS/DhtCS6Nzmsa5ggEhUiK9zmtZ/lwvVHqqIxU939ORn6y0ZNl6Wee04uPck8Y2cicjkdq0P1I+P5+Yvx/J4/njNh8Tbr5NoT2Cn91pKCRz9zzKi/H88lgOPyeeP5zWI7+vMhiqXpgnZPR0A2cvqaIaWvluD7BgEVXWse2BsM8xUjUrWSSyP9yNZ6Syv/Ku54f3aW83mu8b+hWX3X1kjSye4IUjataFZnMhIQH+hwiAkKBxxz8Zdbx9TNZ8sWuU4a9UstJ7nsJC05sTN8gqVDGYjonz2BVflucxZddWYPvYGE/IgVFNX/YsJGu6fN04mnjuFkje+QmY+vn+IVB1SKQJYvkfKOrJ/fDJ7G/WJ/IdTcWHidzWCGaCSzK0dmNhG5Qosq8GLsWhkVuCOSB3KgfSn5DLozIbTPekkkaOSvYszyUfplDqqKkcqj3/c5YOTwEdSAHjVj2uA8VetjirSl0+Zrb83JZ1bCUo6rDGmKlnFVyFuYBAMMkssqx/J8cbWM/lRzVVU5Ifp7tL9jabhrqvPHR0t7aPWkmlkjUqi+0CGf3P6UliIJ2c/C8cdycwXk3keyMNS3r7M9CLYXlgVatiRliSGQgwgysZAoXsOX5bt945PwfBVeGoOscJfUkIwAgN1ZQiBskggSKFr7YyaKJ8szWvV6pG9Pcrne97kSNvo5GpgtjtHv6yeSVGktTfTqZflVLJakdeGYExsFRQVQj+Fk+VOd+vaubHfQTlpmapE83y579fpa6OyhQwMZL8qGUlFBUqo+TiXtClGvc1PVfCz7MWqq6+J7Wo0lpx6jDufA5iKsMjmRSp72e16I5Eaqe5VT6aq5IktRo2JaBq54ZvtJWMFiQeeSznjlg3PUE/gZnaDmtbeUktJYnuSOAT7fsIsjFZORyQeeeqgHt3JHI4zZs+j/jK3EeE+RrKesZVVhO67PLDFijbFCsA+uLpI5YWNVU+ORtOn834Vzmucqeq/n1r/AE6R2P8A0p0N225ls7WxttnPKfzI1jYTIjN+PuEUSJ8gf2/HwBzUH1cvG95teYuZDXqa6t2LFj9lSOQjkgcgGX4/IAAAJGWhcnLIzxxjHGMcYxxjHGMcYxxjPCdo08mh607CoIlRsl5h9bURuc33I19ln7ENjlb/AOXtfM1fT+vpzA+U1vrPGvIanHza0e3rDn+DNr7CA/8ABII/kH5GZPSziruNTaYdhW2VCdl547CK1E5BP8AheOf9c1GvK2Cce26UjuppyHSY2zHARsLlZJbnJXGlJI5jHRjOMax/o/0SNPc9no1PRF8NdZLYq6ypCW59iN5EXt7YQSW5bLkDtz7fdxKyrwSwBI6njLxaOJbA8maAIqi9Xkl5YH/t41eEOkZ4LdS3HLMGAAP5BzIPhlZYu1dPThXIyXBcFkZJnCJ2Msg3VxjhrCCUNXq5qiPIFf8Ay+qPHnjmj90KK5Nn1tZdttkeYiSeSoGjjUfaS3dYwH+FkLL7coCdQysw44VuNb85o7PXQGSSu60UmijS4F7QTe+oeJkkVeGVxHIg5B6usise5XI/dm/UCgy/cXdXWvQ/VTu7NHRZCYS5vM1oQ77K0FTURh3ej0dsblP1CCqBz1dEUhwmiuKAl5YBQUTJljlkgsD6beh9tLPk+52tltfR3vibU4ajV5a9qIfuVRpJlawIveWwyJGhqpKqq8ZkIZ44nird+VRHX6isjtJYpbd55CCGT7oJeBzGCY2Q8El+nfq7ID9xTCHYPdgXdnjpoX0jEzfZuE038HdoYw1ga2eD7IApYb59YeILZWaDslGthTwEeeRKxr5I5JHEBTpyLPOfAT4JvdJUmLXdHtHW5rrh7KmwolnilkhkMUZbrMzpIPbHJ6sq9ZQTL3pJvK203psTqe9ZDFYh7kSRiQxdlcBmJHtBAV7gspKN/cS2EvHDsTca6fN4uwyU02Qipw573sMkyV0X94IRaETZSGGZVdOZFWJLamp73Pggmgm9jB5oVd8d34lS1eqbeQ2ikt7yNKFDXCMFDUECTLYLrz1ADgAGPqeOpYPyF3vyyWuu22c8cn9SCu88NdUCj6GXvGJGWMBYo+4CRHlSSGUsHBObuX0+a19X4a9AskFcJJY4ldHJC/0+T36q7t9Gsj1T8e6VtoyX09V9Eejf2anPVT0koLrPTXwuknwItBRY/j5eZWndvgn+55CefgH8gD8CiXmsxn8r3khJJ+ueP555HsokPX5/9vt9ef545/nJlckXNXxxjHGMcYxxjHGMcYxxjOOaNk0UkUjfdHKx0T2r/VkiKxyf7tcqc+cqLLG8bgMkimN1PyGSQFGUj+QVYjjOVJUhl+GUhgf8EfIP/HHOa73ZnTw2h2XVohwrC4aySwr/APqY2v8Aa6ttRq90jEmREc9P06dsieqO9kj/AFX/ALkXxG2On+g8z1uvVT9MNx9KV6DrJBBuJ9ZPH1YgkIYGVlYdkABB+3Lb0du0ep3ssbsrTxRSr1JPzLXacBgjfAZpVZQEA7fPP44qg7BzNl073dvC8FE+j32B6s7H1dBYgADWLjz5tEtAI+aNzPbYFAjVJcKByuVz3WkXvb8Uat5iI70mrnSOe2YEreW/tJmEs0MlP6J7CvHB8usMTCQdmKMoSKQLzkv6cjyDxfXRbPrZ1m63Wpo2Y55eiwQihHYBLAGeOKeSyZWMZUdq6r/cS4rErPNrxhzPWMdFgtB1h17vcHjA6azsKXN6ES5n7DrGmp2ZFcuyJVPWdjYTUvs7Y8ypthbWG7sixxK2eg0MUN/T+hnp14h5W/kvlO78hj31yn5ZrNXNrF2FvtRGuT6ZqZrVJWf9puIiOssAWPvEiSSRtG7FqjeZ2NZTji1msm15/ZNxtqcslZOxknhnmjLPL1D24WKo8UgDAF/tIK8ie3VkWc23iXJp888PSDT7LdqV2ePmpsiF3MaMa81nYodWTCy4QIoS2izELLmc0uukzpFa2xOgEiKfXv8AUXr113k1CS5PPXD16Yqa1pmnbTwtEEkqkANCrmVWsEwovumcOEBJCyJ6O3ZJbaRQRq7PYZZrHRVayWmjZ3JBBYqv2DsOR16t2BJzks86Bh6Lpe5yUA1eyzrZtHrgnv8AhityJc+dSwmqxGq2CwbK2qaskbfdLGO9H+537wym2/fYNJppE/qyRVUgnUt2+rF14DZYPwoiesHRgOWU9eApUnJqkQxz+bC45lME/wBLTZwGMMcdlbJhXt1/pODMQp5H3qeASDm6945UK5foDpLOua1j6Xqfr2ulY1qsa2YbKVTZkRq/lP8ANV/r6/n19fX889kvE6jUPF/HaTDh6mj1Ndx8A94qMCMDwAOewPP+Tyf55NCN7YFvdbe0vPWxs70y88k9ZLMrL+fn+0j85mfmwZiscYxxjHGMcYxxjHGMcYwv/wA/6/8AH55wfx/twf8A4POPn+Pz+P8AP5+Mo58xuzsp0DZVm02DjBquove4iJpAQiDJIQqK2NupCHxjsVfijrCfk9XexHK5sUbnSviY7yz9SfGrR9S6dWhV7WP+ovMoYgpARZV8tSWgJH6hY0kGxjjDE9VaVQT8qRYPxtja0mwdnT2o9do5pyzASCI0uk3VeSXKNCx4UM/2HqOBzlFXfnamE8jNTrH4mnvrDMj38+k7Jp0uJOu9Le4S9ovZSz1k5J9RJYx2G5litWZ4XQ07bGOomGNRJyo68mNtv45a8f8AL/JN7LLSp3dpDsKnjt16CbqjU8kgelPtXvVo69paky68zrNafXWjC9v3YFAjMiSHT2E76bxmi/1M8MA1lu1WLS1XlpLNdr1jXPaJ7MLlI+HWZJJFjaFyUUIa76/wYhz2fu7jO9edXD4jQUw0W869h7Gnk7QMxovY1ehT7hxbFr6W/OwOhbknQ1F6RUz3kYlla3Ykg8k01itJ61wCDS2Njvd/sNvClivFtINTJHqIrUlLVxsa8UftyS1DsQb1Z7NZZWqm1FBWfhosj634NZt7K7QrU6euq27TTIlmfozLGb8yBpX79GNdRVPR3HvmJpXA4OW064Cz6+o+y8DS9YU/WnQebIyAuSzeu7ZpB9N1v+qZ8QO9pm5Mg7VxAC3NxGNaZ7D1uucYNAXMTBWBNsHDs0n1erjy6ntoGs27HkHi2nrbmeeDUTyV9itxVlV4bYaP33jjjJsTfSosZYq8j9Oy9703kGp2uonjQrFstjJWSL6hQ8DRsFi5gILBfv6CP3GLHqUUkgGLGGGuuzcv1JnqedbUu4PbWhFtSVEHzwuhIKR0kbl93thHiiYjWNapfvha1rWTN5CvhWtkbzSvXYdJKb1+lZ2SQrK71kWOMhQrEPIesYLAN37sTyRYT1AsRay15CzRGASFZZoyvPe3JTVJH7qvIRyewZiVUfBYheBvs1Iba+rrgGRsiYEAGIyJjUayNow0UDWNan4a1iRo1qJ+EaiInPaeFPbijj+P6caJ8fg9EVf+Pxxx/pnnU7dmZjySzMxJ/JJJPP8Arz+c7Dn1z844xjjGOMY4xjjGOMY4xhfyip/75wfwf9jjKdPPTEXen0I44FyDVUNJLv7rY1ZdMDcwbHO2uaya/wAMEw2LJIBgzrKdpxxkcb5Ujr1gjaqTSOb55/qEiFDyjyicWJ6UtDU+QbaB6sntPJ9VW8VsAM4+4ATqZw6lZI5U9xGVwGWc/T+xH9DDE9VLbXZNZTiZyxFWaG1sVM468B29riH2X4VlcKeeAGp1tfHTrSyt+6ahOusi8PQEIlmPBTCijnhOoa23HFIHGSGNw0VjXxljxNYxkBcX3MCRyqr1qPN5F5ZNurT1fIdoX1lu7YqSGwztVJ1SyM8XZX/qvAzLIT8vH2V1dODkt+3Rj1ui704OJasMFleB1nEW1kHtsfgqELDjjqAfyBmB8L429RnmNqr7orEpkrDr2wrYdyJfWkVs26IsvbYZywrpi4yonyRSTXI1r9waFKekEfxxEgieyRJPU7YS+DV7FXeiPbw2K8V1khigtNMEgMErfYsUo9uv0JjRArPxyVkct07+nji2syOsxWGz7sNKYM9dasiysXilRie5aZlMbct1USMTyOJ098dH9F5jHdu7LL9Z5IfXFY+mrx9Z+nNM0byy6mpysxxFwXJOWTbz1EbRTLWd7jJ4o/aszmueibR5t5ts7dD1CibZTvRsaXTRVancCtB7/wBLHLFAqkdV94mQxjrGzsCFIBzWvAddHFv/ABSSRFWSrtLNkuw/u9n3Z4+xYEHgIgUj7vg/5GQu8V5qvTdudMY3NDkVr7rVVlAjGjNgJjhk7DztCZYMVPR0UJI7THjTN9HyQK2RG/siaD6OaC9d8/8AHxZmLRvudKjMr9xI9y3WkEAX/wB4jZi5Xn2hG4J7Akyx6mWmh0+6nsMtidYxO0gbuI4xrbFnpJ/4hoyY0YAk9+EH45zd0anon+7l/wCXKqc9lh8f/J/+zzlCs+85xjjGOMY4xjjGOMY4xjjGOMZVb5xaKlzu5hoZjfktth17fHRV7Y3SSoH9lPm3EMYir6xJZQ1DJHInuY+Zqox6I5W+ev6r660vMFiErBvK/B9zCFZW6/UQ1HoKkbchSzvBSZueGQdXHcEhJu9Na9ixqWueyBW1e7oo04Yf3mZbiowJDdhF9QfjhSoKll4GV4ZW+w0vaeoqz7KIR1p17n72NTYphB5nqAZnp42ykRxR/cNMUdjoUcsznED+1jmyerar+G1qdjyDby2pa8VOzpqXDyyJGTcm0JqSRkO4fh5iixkI3uueoJ/iTtvHfPj2vsxQ9jFur1RljJJULPDcjIEYJVTEXcEqVX237cFQWhbYdi4PKZmrdcaEOtC/VzhJ5JZHr/mkXJY8LJ444pfaxqqxr3OYjIo0fJIrGJ7kit9demqCrWrTvMOZnSJQCyo8zBirlVBWJR0JZSwYKpb+0SLFrb97ZzmvXNib2YzGAVI4WrE7+0zFR93LMhLM3YAL3ftkjO3dhSP6suIRLKE+C/bTugfAkxXzBwN+7a9qsiVHN9sXvVEX0Rvo78oqckba2CfHrsMbmSXbDTkF2+DXplpuGc8KrKVPKdvg8AgBeM0Px+rKPIaiyxCFqJuKwPEISaY+3ICCx4PLBAeOWJH5+crk+mNrr7W/U/6v6lWAiMCDdGbAM4kFrvhyuKx17sjQoffOyeGOTS0dSMOQjFZH92ej2Od7eWZ/Tt4lX2PkXhO2a77LVTJbsVo2EvvXNcJbUaSP16qZECSycsGXovHPIA2/1qWpU8Bt3xF2sTVEq2HR1RfqrkkVSB+F5LMtSSYSqeGPVT2/u53wU9VRPX9/RPX/AF9Oekw/A/2H5/P/ADlC8+85xjjGOMY4xjjGOMY4xjjGOMZqy/2kPsXvXxaK8WfLjqLHWO4ylCN2l1X24C6muZcvSVN5LkdTk7bR6WnQhueUq1qLQGrmtBYq6WdkzPv4p3xjExD6rej2i9Va+tGwu3dZstS87a69UijnVROvE0NmFyveBwCT1kRgR+c3rxTzy34rS2Wt+gr7Chs5q1iVHd4bVexVSWNJakyhkVnileORZEKuvX5HHOaemv8ArE7jsDcAae2z5mZrQtLlL+WnzFklxDG3NKAsgEUriBlnrj562ApRZmsZEQ5yo9fy51cF/RqtFXta7eUNjeFKWGvNdhlrKrMoFaQoomVHrgFEPJBVR8A/IsB4z+oTwnXaiXV7TxfcpLPVu1HtRmnbPW606tInzEyzqkvtiRChIYjnqiqeTsX6vTd7LnwiMvpaurCu22d3PTN+xPskmcc8uKOF5k8EULXzBysGYrElWOZJJPc5FXG6/wDRztacF0ybbSzWpazx1xYM8sEUvdH7sPaBUuWlXtw5UlCFI+c7dH1+9P8AV2LE9bXeQWS8ftw/WVKjLXi9qMK5Il7ySII2TvzyA46lShXM2W/1588uUky8nTGnbBXxfaVViXoKYeOxGhGcLC8seeNv6Y58TY5VjhkMbG9ZWOcqe1V7Tfo23livSgs+XakRJEnuotO4WryLCEZULKBOkf4JPstISJOOO3EZp6vaGDZWb8et2xaad3jQCrGsvacy8FhL/TZuR2B56gIoYlcsG/s2ug7U8wfqhy+SUvXOqzvU/T/R/Z6P1oNMfYYcnXaqStydHmLHbEjBUclwRWaC/tRqillOtJP0Z05MA1fHNMtkvS30b1PplTjhgvz7S5G8sn1LxLXjRp4VhlEacyO4Kf8AkZFALHhSB8a9516u7Xzap+1LRj1+o7RO0TSmzYklgcOnebrGqleqE/Y5YfBfnkZ/Qv8A25MeRPjjGOMY4xjjGOMY4xjjGOMY4xn5TgQrMMmvsRBjgTIJBiwzB4ShCh5mKyWAkYhkkBEErFVskM0b43tVUc1U4xkDe0fpW/Tc7nLdYdleDXi1p7KSZ5E9pN0tiKy0LIlesks5tjRVVUabLK9yukeVPM57lVXKqrzkMwBAY8H/APX+P/5n5CKD2AAPPPxyPnjjnjnjn8/x/r+fnMPf4Gn0ikX1/wAPXxe9fX19f7uBPX1/f9/uucfg8j4Px/8AX45/znHReOCOR8/kk/n8/kk8fJ+Px85lLr36TP0y+rZ/usR4GeKFSWj0kYWR0hhbwqKRrkeySEnR1NxNC+N7UfG6J7VY5Ec1UVPXnJZiSSTyeeTzxzz+fx/n+f8AP85yEUfwPjn/AF/P+/PJ/wBT/Pz/AIyedDnqHLVYlHmqWpz9KBH8QNRR1oVRVhRKqu+MSuroBghmeqqqthgYiqv59ecck/k85+s7jjGOMY4xjjGOMY4xjjGOMY4xjjGOMY4xjjGOMY4xjjGOMY4xjjGOMY4xjjGOMY4xjjGOMY4xjjGOMY4xjjGOMZ8X1RPwnqv4/wDv/wDP3/p/qn78ZwfweMhc7yp0OeN3Qex6i3E8lFd24mfdjqE+zAPrAD2VQU5dpZSAvJmPKe415FVUqEJSi2Vkn3MID1l1f/qGaF7a2dbaPsySrCasLyI8aOI1LSv07F2PfmOMqsSyP9wT7rCD0U1e2r+NT+P+eeNxLs9dQn2q+QbOrStVblqq12eOGlTWykKVoV+nEN28LE2xnpU2MMlpemUOpfIvG9sA0K14Oirbq2ms68yrIobcgSpt6Jj47oI2+GCfUCtGsBjq8dDyQzZiQ5ByAhDfUVuQ126rbFIvbSdJZDIjxmKRlikh5EqvMq+0oV1dB3ZHLIVKK/25pvnXpP5B4Na2Qt2dTc11GOnar3YtnRinvUdmyNrrFbWTWFvztNVmrWpfpYbNaOGZZYrU9cCc/wD/2Q==</t>
+  </si>
+  <si>
+    <t>Trà sữa Oolong</t>
+  </si>
+  <si>
+    <t>Trà Oolong machiato</t>
+  </si>
+  <si>
+    <t>Trà Oolong đào</t>
+  </si>
+  <si>
+    <t>Trà Oolong hoàng kim</t>
+  </si>
+  <si>
+    <t>Đào Oolong machiato</t>
+  </si>
+  <si>
+    <t>Trà Oolong latte</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHQABAAIDAQEBAQAAAAAAAAAAAAgJBQYHAQIDCv/EADcQAAEEAgEDAgUCAwYHAAAAAAECAwQFAAYRBwghEjETFCJBURVxFhdhIyQygZGhCRg0QlKi0f/EABsBAQACAwEBAAAAAAAAAAAAAAAEBgMFBwEC/8QAOREAAQQBAwMCBAMECgMAAAAAAQACAxEhBBIxBUFRBiITYXGBFDKRQqHB8AcVFiMkM4Kx4fFEYnL/2gAMAwEAAhEDEQA/AP7+MImETCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMImETCJhEwi85B9jz9/H4/P/wA/P2zy8is/OjX60RfyvsvLF1Yvxef0Tke33PPAPI9vf3/fANkjPtq8GsixR4P28Fe2OLyeB5rlCQPc++CQOTk8Dua8Dui9wDfyPNXmuxI5H0KJnqJhEwiYRMImETCJhEwi1bcbK/qKOTY65XQbSbDC5L8SdIkx0qhMMPPSDH+VaedflgoQlmPwhLvqVy4khIPxI8RsfIQ5wY1ztrRbjtBNAeT/AMr6a0Oc1pIbuIFngWaz/NqHzvdJsNij4UBGoVy18lElxU+fwOSkEMqdYCik8chSkn1cpVwcqWo9WaItIgnbC7O1z2CUvAO00zeB7TYIBGRk0tmzpeosl8YLaNW8tvIog7MYNi8EXVkLh1j/ABTcmcHOrVsmPY25uplcibOj1smY8v4r6TETLUiO04OEttRS3HZCE/3ZZAIpPUZYde58eo9R9Uha6b4rodNH8GLeSNwIjmoNddFox3DcLd6aGWGvh9L00gZEWB73NkcCCSDlpGME3ZzQ8rdtGs7nV23pFR1TtKUhT6xXWqo2wwJy1coIXHkpCI55HqZeaWlxrnkhaPU2qT01/TeiPD9N6j6qA7c5+m1AOpheSchzZL20Mtcwgg5wHGo2qj1erG2TpulG2wx8LBHIOaotAJDayOL5JwVlr7fepl76ERurCa1LSiltdYirq2nEHgLXMS3AfkOvc+pTam32WkjhJY9QKxvJfUekmNw9ZfGGivht0wY1+7FudtsvoXg0HHJpQW9OmYbk0Ejm1X+aWk1Vmu1nxwOOc7rqfVveNbgKhXG56vuZSPUxKtUqhWbSSjhLa5UBLLE0BfCgt+Mh0J5C3XCeRn0XqbTx2NR1SGeMANB+A8SMIF+7a47jQJJ24FnAyMc2ic+vg6OWJwwf7wSNsHONpfuObF0KFCrC11XcL1LqrORNfmadaVrpCjWO8NNxEI+8WVCf+b9RHhaXw+FcKUA2Txkv+02j+K57NdGWd4XaadziAaAjDaO9/wCZ12B+qju0U7QA/TzCjQLTt3GjfLbrvnjzVqXHTbbL7c6CPe3GvtUceewxKq1tzjJ+fivIJ+Y+XcbbkxEFSeWkyAFutqQ4keghSrVDK2eKOZl7JGh7dwo0eLHbyobmlri05INWOD/EfQ5C6JmVeJhEwiYRMImETCL4cSFIKVAKSr6FA+xSv6Ff+qjnhzj/AIS6z8x+t4/eqYL6pRCmPfLxksu09vsVeUMthPDbdtKUgKSkJUSA2hQ9XPBUvzznFuoaRjdXIY2NEull1DQ0G/aZi91gULJ23jACv+mkBiBJtksMRLiTQcAGnaXXzkkbgAQTkXfWtJtIV3HeYdhtIkRFIS4h1lor8oBQ4OAofDWPqQTxyFcKHqHAivkbqG72xOjMLyx7SBj3UHWfcQ/yST9sLLDG/TyFpcHiRpcxxxuH5aqyWnGATkcnIW/pra8pCPk444JUB8FsfUo8kgAAeTyfb7njjMRFirOe95/U2fr57rO0fCBIv3m3Am81Qo5IFDIGCTZzzjrmZq2vV4lXqoECJImQ69p51lA+LOsHhGhRkBCFLcffeWENIAJUQSSACQEjIS0vLAHyMY3eXEPe84aWgZuieQMWa7R9Qx0rQGb31ue9rCPaxhBcXWRTQL91UD5NA6PaaRpj1ixsTCEqlxQVoZDvDL5IIIcaKvhqJSSngp9IJ5454zDN0TRP10evOlrVwtIaY3PERHuIDo7LDR4BvF1kKCNdqGQu07JN0LyHZaNw9wcPcK4oAeASFyrca2tZZkzI8BmPIWjhsNBP1PSSGWWwASn6nXEITwAOT/XEWniEzLibmQNJAcC4ueBmiQLcRwBwe6hTSueBbiTuccE4ppJxwKAPz+SuTpK5upp6ura8N11bAgNgAABEKIzFRwB4A9LQ4AA4Hj7cZ3mBgjjZGOGRxsb42tYA36cHuqwSXEk8uJcfqeft8llMzLxMImETCJhEwiYReEcjg/7/ANPI/wB8Ic4VX3VCnj651Y3SjSgPwZU+Pexi656HEfxBDZsZMcJS0pHwo0t+QyyskrU2lBWSsqzlPX4m6Pq2q+G0ObII5DvLgA6Zpc8CgRmuAPJBBFK8dJL9VoYs0YrjyQQWsoNNYznvZ5N8r99fgM17j0qHDPrfDYX/AHtKQpKEBKAR8uAQPySOB/nzo5JKa8CMNMlEgPYC4tNjJFk5q64x9di2Mgt95Ib2LXcXxZd8/BW4tuzTxxBJV7niUx7fj6m+OT+QfYe3vkcF2S4bRX5bBIr5gC/P3WYix+YN+Z/2WNuqNF+1DasqlMhuHNZsY7b0lgoblxwr4L4BSR8Rr1qUhfAKVn1J8+RmjeGO3bWuIII3bcHORuB88jj/AG1+ojeSPhyXe8SFtt9pLbBNk0QDjvSwdzVuJiLZFcjj0cAia2gcEHg/SypXPgcq+4/bMztU8vFsbVtJoisG8AAZ+fnnilrJIg0VvJqjgObwRi+COxHiwuQ6FrYtN66fdPLZ2U43ebcucXnbAT5LcWqmubQ7GPqjMhUNpENEBsKILTLqW+VEAZN6Loo9V1OJgaXQt1DJS0uN0XiUNLhnAFjwMAeYesnLBvaAHBmx1R4stLPym20AS4m/caJvhXLDyAfznYVX0wiYRMImETCJhEwiYRV49yML5brDHeCeBYanTSlKI8LUxNtYJAP3UlEZv/CR4UkHg5zz1UwDXNeap0LSSRVFpc3k8iqHi6rNq4+nXE6WYAmmzAcmvc0mqv5A4FZNmysNSA/CSOB/2ghXnxx/T/LwOePbk8c5UHAEHFmseVv1t7JSngEoJ+6VLSFHz5+lRBJ49/HPHt4zFR8H9D4vx+9Y5HAYOMjJqvt81H3ui7ntB7Selj3WPqhXbhL0Wv2TWqDY7PTdfd2Y6jB2S1aqv4v2diO625WadQqeTL2G5Ae+Ri8KTHdWtCDI02km1cgihDd5ug9wZeCTt3fmdig3veey12okZE10j3ODGkkljXOJs0BjA5u84BI4K6mbqqv6Ovv6OyhXNLdQIlrUW9ZJbmVtpVWEduZAsq+YwpbMqFNivNSIzzSlJcZcQsHzwI7muY4scKc0kH7EizdVkEVV44o2oUkjXi2mwWtIvuCTRA8UMLG9Eqhix7gdVsFoK3ain2iS2fJDQMJtrwCOAtxbyB6h9kkZZvSJA6kWNGSyWQkknIaBXfi8ZxwO603UQQGkk14xZHIAGL7GgfmeFZyPAA/GdR+q1SYRMImETCJhEwiYRMIoM908b4W86PO44MvXrSLzwPP6daRXgD558fqfIHuQT7cHKL6vYS/Tuq98b2DOPa9pI8dzmrH3Vo9OnGpbnJYfph2b4vFfyFodED8JKvJPCTx+QB7e555H59/v+MpIFkDyaVndwfoVATqV1C7i+rHcftvbn2z2eudNanpvTVFp1i65X2sxttt6mw2Gpjz6HTtKrpz0SEq5fr5SZs+fLXMDK54LAhmpmuLnsjgbAZ5S+g4MZGx5Bc8WS7GNpw1uR7gQRwTr53yNc1sdEuBJBI7UQRzRAP7/ADSxW99t3fLrms2y9c7i6LuJqZcGSxsfR/uK0+o/hveaeZXvRrbXf4n1+YqVr79ih1yNDX+nTatlxxDk0SGPiNJ8hm0zJBIWyxEC2va9pe0uGT32lprteOcWocwlc0tf8JrTdhrQw4AvcaG/H1ByKyFFPsC6h7n0ksta6IV2r7r/AMs/VaTvg6GVOytybnZu1zqj0/nWKurna3v1rELzLWtUUpmTadNbya43C/TnkRIzgjyo0VuT1KOHUMGoa9g1EbWtnbGy2TxOotnZZB5FPv3udmqwdbG6nOjr2tPtJu7rNXgAVW0Cm3xlXrdskRMvq3fy+D6azUHilRSfpdn2sWOByfCSppCiQnwQk8HgZsvRkbDqdVKCSWwA1iqe8tFigc7H4v8AZBPaoPUb9g7A/wAOCazzfKsIzo61iYRMImETCJhEwiYRMIod910YJc6eWJA4E+8rufcgvw40sDx+RCUofsfxxlN9WsqDSzFzQGyytomnHc0k5rbtoDFgl3Y4Vh9PPPxtQwWB8NrycgVvDeRgci7HjnhR4ubqfrmi7bsVTEYsbPX9W2C8r4MlbqI8yVUVEuyZjPrj/wBuGX1RShZZ/teDw2QspOUJuXsHcuAAzknHNYq7+3i1bz9LHcHuPF9vqoT/APDl6sVG6W/WCfeR4Gvbv15tdP7pqGmXNU/LtNF6l6PRV0mJSuy/RLn1eg7pRbLrkhlAccgSJSpLqG27FJydq2ENjjaRUY2Ox+2De4YG7e1wc4kWDgXwNdQLnECy45ODx7aBHiuB/ChZ3f2tPS09lcXljX1dJWRXpVna2stiFVwIbaFF6RPmyVtRYzCEA+tT7iEngp8k8ZryLFHHayCM5ugeSKJoWcL5c5rgQGuLgCBzzXNEZyO1jGRmjX92rKi32v8AXDqnSMPsaT1f7gd93Xp847HlRGLzU40Ol1pjc4UaYhl1mFudrT29lEdLLfz9cxAskBbE1lR91Bc1unjBO9kP949+JPcSWA98N/ZcQQHAnwda6nbiC0gGraBTiDRIPi8fUEKwbtHiB7YOpdkR5Ya1uvQr38PqtZS0JI8EAxkE+eeVDn7ZdvRMdRa+SjZkhj3EVYDXPwf9fjwCbFnSdQJ+IwWaDSSOASTg15Ax5U48vS16YRMImETCJhEwiYRMIot91sMOabrU4p/6Db4oCv8Ax+drZ8Tjn7er18cff9hlY9VsL+mhwsbJmEmr5vAusk0BmrW89Pu2685wYJRXNkAEADv35x9Cqq+4yX3JaW1VdUuitanqtpNJql9rvVXt7EeLHvtsprRTrqt10C3UgyHN0ooTr8Ia444Il1XhDTTEiUfVGoOlZFLvie5sbnH2SOAppIpvuORTslo5BB55t0xe1tsFijuaG3Yok5xV8dh3KrA7YO43oN1K7TelHQ+26E9ynVLr30lXt8CEx0Y1C4oOoPSkv7xfyaJz+aXzNXB08y6ldYmwq581cB9UZ2DOr5YjLbzZ6qGQTF9QuhIYWlzrYTsbZG0tcSDuBoUOCTitXDqKDQba+rcwscXAk2QcBtWeQ7ivnU/ehfb9Z9R2tg3DvK03rPA1ijl0bnT7XO5TuIrN+r5il/NKflbBpWvRKLVqqTDcbgphIuZ2wqs3ZMhfw2HYiPVqpTHCT8NsPxHhweY9z6BLXNouJ/PVGqIyLsr6DtxNh21xJNt2Em7BYaummyRZ7Chyp+2Ftrq6uA1Q2FK/WPwlppW6iZBegvQq9DbKv0tMF1bL0KC2phpfyYWxFSthtfwwttKoD9xLnuDskEkgjJGBnNkDAOT9sR5gADQA9o4AHc4/nub8qQHaHE517e7X0kfN7e3A5PH1Ctp4b3jjzwDZnyfHPPH3zpHo0D+rZXAn36l9fJrI42gfrZ47qu9QJMwbQAawVXzJ/ntVDlS9y3KCmETCJhEwiYRMImETCKPnc3GL/S2W6OeIF7r04keSlLVgG1H+nIe9JP4Uf2zQ+pGl3SpiG7iySF9WB+WQcfM3XdbToztvUIec7m0Ks2OM8eb7V4tRV1hRLTQKuT9HPnjggDj8efvz+P2zlt19s8fzf0V92uIJAFDmxf8AH91ZUVOvPY4N03yN3A9tO9yO3XuXiPQhY7rQwpEjTupNUxIQZ1N1Y0qC7Fgbe0uGp9DFlIaXYJWGW3nyhKHmpkOtIa6PUsfNGCNrba44yC0uILS0n5j5EjGvniaC57GDfdE3WO57j9w8KRHcp0Ud69dAN76PT5VFHttu1kVlbst9rKbeopdoZMV2HtcekcdQUzKyQ3ImVQjTG5cB5xssy+G1qcixShkwkDgGhzictcSCbDXAgtO44I4OchYpWktA2kW1wdu4yKsEEHBuzX0UGunHYxO6LdWo3U7+cVvc0NRO6nTKHpzHpW6vW9fb6kz5smfCpfhTXP0+s+AaVE+misM1EubrlTZswoshBIy6vXRTwmJunDSXsPxDRO0B1jzuBIG79ppDRgC9b+HMYLtwoHIBJFk13BPJznkfZXSdq0JMbpU3KCQlVrs2yTVqA8uFmcKsKUeByfTWpSknj6AOBxnR/SzBH0fTUKLzM82Rk/ELTgfS+9XzlV/WknUPB4AaB9Nox9iSpI5YlFTCJhEwiYRMImETCJhFy3rXEam9Kt7adSlSW9dnTElQB+G5XpTOadTyFALZWwHEng8EfgkHXdXYJOm6xpANQPeLF5ZTrGDnHbOfFqXoHlmt0pBIJmYw0SPa804EjG0j8102rs0oF6e/KVHjufHZdK0NuJ9bZSf8A5PqbPpI4/CBz4PtznHSCQXAkACqNAk83V39wK/h0WzxRAPPFfeitv3DQaDqfrqNZ3KqZtqZNhBtRGj3N/SPtz6xTioUpuwpJdbPbWyX3eEIlJacC+HUODgD6YaAJAdgj3CxyeReVie1wJc2V8d4BYG7uMiz2NXdHPalrGl9B+nXTTYbncdP1Vir2a+rWqi2uJGybZdSptcy9EebjOJurOwjpCXIMRwuNMtvKUyOXFetwL8lkkdQIY0CwNrQARgXg9hx/wBqIbBcXPc+r/Png2aqqvN85PyTdXZSIzqy7HbSlDh5S2V+QlX3cWkcjx49BHuDzkRxAcMgY4HJHf71f6fRRZiC0kN2igCDjkjON3nuVO/ovCar+lmix2mkterXK6S6EpSn4kmY18zJfX6QAXH3nVuuK4HKlE8D2ztnSIxH03QtAA/w0RwK/M3fx/qye5yqdMblkOMvdwbHPYrp+bFYkwiYRMImETCJhEwiYRYq9qmb2ltqWQtSGLesn1jy0pQtSGrCI9EccShwKbUptDxWlKwUFQAUCMxyxiVj2Eloex7CRyA9paT4xd5/cvpjix7HjJY5rgDwdpBo15r+KhDA7c+o+plESvuIWxw2B6GJC1sMSFMoACFPszAw8h0gH1Nsy5KE8kB1XJznGr9KdSaX/hnw6hgJ+G55bHKW8EEOHJNcP5wKNFXOD1HpHtqeOSE0QQAXAuNUdwt1Dj8h44PC21nROosYJ+JUIc9P2ajrWPYeeU2RHt44A8HnNefTnXGNH+DjdWCdzXk2f/WUux/89ufOf+uOmnInNXgFrg4VjlzAObIoA1X3+ndN395JApnEHg8E1zqjz7e6rRA4PHjkfg+xHHwPTvW3/wDhNBHj2izxZfIODWeBm+xUZ3VdCbqZ1Auq238xwAc/Q9gOCTq83t+6h7YTHl2MTXob/wBK5LrcZx8MqSQstxY6pUgOAFXpbdfYSogBbqffJ+n9IdRe9jtS6DTNBBeWkSPsEki2WRf5bBrJNDk6/U9V07m1FucayC0VfI58HJyLxilNuogIqqqtrGyFN10CHBbUlCW0qREjtx0qDaSUoCg36vQkkJ59IJ45zpkbAxjGDhrGsGM00Bo+fAVdJsk8WSa+qyOfa8TCJhEwiYRMImETCJhEwiYRecD8D/QYROB+B/oMIvcImETCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMIh9j+2eH5f9fPOMcoogv8AdDZ0d71Bqdn6Ubo1H1i2lxNXna3W3d81tNZGe/Tkz333KOugVrjlwmSw43FlWbEasgWF47K/Toi1qrh69JFLrI5+naoNgkcyGSFskgmDfaXOc+KOOMGQPZbXPaBHLJ/lM3nukX9DWi6h0z0trukeu/Txl6xoIZ+s6frGs6d05/R9ZM38QdPDDB1LWazWsZoHRStdNptFJLrNRpenNgGr1DGro3S/uA1LqdWUUuFCvK2ddSpdYa+VUWbia+4q4cJ67rLCYmGhqukVNhKkUr7dmmE+qyr5jPwU/Dydoerwa6OJzY5mSSks2OikpkrI2Pmje4NqIxPc6Fwl+GTJFI0A7VVPWX9GHXPRus6np9Rqena3T9Mhg1f4uDXaRv4vp+t1M8PTtdooTqHP1sGu00UXUIn6I6mP8HqoJRI5riR//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAAGAgMAAAAAAAAAAAAAAAECBQYHCggJAwQL/8QAOhAAAgIBAwMCBAQEBAUFAAAAAQIDBAUABhEHEiETMQgUIkEJClFhFSMygRZCcZEXM0NToaKxssHh/8QAHQEBAAEEAwEAAAAAAAAAAAAAAAUBAwQIAgYHCf/EAD0RAAIBAwMCAwYEBQMBCQAAAAECAwAEEQUSITFBBhNRBxQiYXGBCDKh8EJSkbHRFSOS4RYXJDM0Q1OCwf/aAAwDAQACEQMRAD8A3+NKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlWllN+bMwtx8dld0YLH34u31aVrJVorUZdFkQPAX9VSyMrgMoJUggcHXDeuCegHXJAx8+SM/bP9KVIu/wDZbgMu5sKynyGF6LggfcH21a96gH5pF/8AqQ2D8+mP171z2H+V/wDgf815oN77SsukdfcWHmeRgqJHeiZmYngBQPJJPjgffXLz4eP9xOfmP19KbD/K/wDwP+a9ybdG368xgsZejDMvHdE84Ei8+RypAIBHsfY/bVfPh/8AkT/kKoUIxwefUY/pzz9Kgu6duu3YmZoMx8BROpP6+2uIuIj/ABqOM53CqFWABIIB6EggH6V7Meew0rdkeTpu3v2rOhP+3Oufmxno6nv17evANUqSfcOCqkCzl8fXJHcBNaii5U+O762Xx+/tqocfxFV9PjBJ/Qf3NUJA614oN07bs2IalfO4ma1Yf068EeQqvLPJ5IjijWUvI5A5CqCx+w8jVQyk4BBI9DmgZT0YH6EH+1V7XKq00pTSlNKU0pTSlNKVgnrVt+Celg81XlbHXKuXNae5Ur1TYmr3ako9OSWWCRyVlqwmNue4DvjBCv4hdbhLWgZGZDHICdpxuBwCGHVunHPHoehvQBXkWNlDbzgDv88DvxVq4PFWVjQS5/KyKQA/c8PbygXtPAiA4PLd3gcDjwTzrqsQlRwWkYrkEqMAY9D6/b+xqUkCfCFVeOCQCDgDAB/p2yPTpV9V8RIoBXJ3HYjkMxi8g8c/0p9hx5/sPvzIJHJ1WWUcDOGHQ9uR/n9ascd1K+h+nTt368/eqxFipvHOSskkckt6RPj2H1IT7cE9xPOrqRSk4aWRuOMkcfTH76YrgQG4OcAkj98f/n0qdsNa7QY8lMD+6IOQQPcgEggc8cEeePPk6q9vMB/suQ5ZclmAHl5Pmc887c7R1Y8Dk5rgxjPX4vqCMfMc/v61H+HZGupKX2lAHChoeG7eRwCUfx9ySOTyefPnWUIJlwUnk5wMHC4GOOp+x7+veschQecYJPQN9QOvGPn1+tUa3VeZu220cnHcPrQsSApBC9zn78+PuPfjwBTbL3Lt1xkjn5jAHHzqwxAHxDjP1/6/Xj5c81VNk7fx62shk5qleWzFNBDUkevCxr9kazSSwMwdo5WeUIZY2Q9iKBx5OpTT1YJIzYOWAU5ydoUZU88YbPB54rggUMSoxkHuT3+fr8uOlZP1I1dppSmlKaUppSmlKaUrHHVaAy7MvygeaVnG3OT/AJVivQRufcf9OZwf2JPPA1H6mu+0k4J24fA9F6/3x96vW5xKh7g5H1H2I/rWNsBLzGngg/YE8g9y+fbkj288+P0101C2QTggcjp9vn0/YqYARskcnv14z65457Y/Sr/qK3AIIHHb4B4HjjuAAHgED28exHkakgxAyOMgehPyGT+zWNIxIUHHU44A7fL9/rVagHJA5BVvY/c+eWH3Hgfpz7EnV2PzecY5A6nPrzzXA7cDA54yOfT51UO09pb24/X+3n9x/cazlT+cA8D7n7Hp/wBKxj1OPWofb/7+2rtW5CMDnv8A5qh3Yj3sfAPazBhz7t7E8fYn7geCeTqm0HAIyB2yf3/irWAeozVwbWgMONZm/qnt2ZeSPPb3iNftzxxHyPt5PjnUhaqVi2nruY/YnI/SqBQDkCrk1k1WmlKaUppSmlKaUppSrT32ai7M3XJfEZpw7czdiwZePTSOrjrFlpH58AR+j6nPupXuHlRrEvii2tw0jBUSGV3cnAVI42dmPI4AXk9utXIlZ5YlXJZpY1AHUlnAA7+v1rrn2v8AEt0qlkvri91YXNPhcDBlMjg8bl68mViWa4lWK4VS7/LgYrNBGssaCWdVVJASFbyk+KNDK3Bjv7W5ks4RcTW0N1EZPLZlRchXDEFmUADuT3ruS6BqYWJprWeBZ5DHHO0bbJCAz7d4UjACDoBjd37ZaxnxNdLnpG3LPkK0YnhqlHsQllsSAenCfTvHiRwylVJB4YE8c86uReMNHaMySbwm5IuXBKTOgYIQrsc4OM8DOep4qzJ4f1EMFG1m2l8GMEBOMEEIQe4PWsh4frj0/wAvXaSnLmCyHtaKOKaaY/Sr/QsViUt3KykEHwPBHcCBO2usWdyCYjcAZwMP6DJJwRgDtng9ueKwZ9MuoiquqKxHdiPoSNn37459Bn3v+OPTyOCWeW9kYxEAXjCs0g7j2wjsF3hjKQOxQe4uxRgrBgOc3iHTrbIkllYhGYhZVbAA55VyoLEbVGd2RggHirZ0a8cqiRDcfiIYuo2gcufhIKgc5JAI+1WrU+Kboxk90XdlYzcFzIbnxmKrZjJ4mBT6uOrWpkhhhuN8yUgvMXjeSlI3rQwuksyxo6E4ln438O31/LpdtcvJfxWpvJbYsweGBSoZpCTtRlLj4dxPcjGDVyXw3qcNl/qMtuy2Jl8lZlyqu5wRsDqrSKQMhguM8ZOM154uvuxLuav4ZLM0UtDGT5GzPbt1krx165ctwfmSzfSjNz9KlFJ54B1Ix+ItOa7ez3qkiQLcSNJOjLHC5YI5O/gEqQSQccKeTgYE+lXcUaS7WeN5khGIWUgyEgHgEkKevoOc8DPKHbRRsBhnjJaOXGUZ1duS7ixVin73LeS7GTlieTyTyeeddygKtGjrnDqrAkYJDKGB29sg5IPIJIJOKjSCCQeCCQR6EEgj+ufSq3q7VKaUppSmlKaUppSmlKoe5MeuWweXxLAMuUxWTxxQgEP8/RnqdpB8EH1+DyOOD58axbxBLbzwldwlt54yvZhIhj2kY53FguPU96uROY5Y5BwY3RxkcZV1I9APvWgFDHltpdQpZsFl8hi7PZPjbUlazInzC4+4YpK9oeVlgW1WEvoSBo/VTvADL3D5R6ne3Wl6vO1vK0MitNbuVBK/7cwUrNH0kAK8BiAM5POa3hslt7vRIluIEdAkU4UcYaSIkcgZBw3OMZ57dcv5jfXUShWvX4d37hWa5IuRkMd5xE1qugSCQQMGhT0o1EcQChQiqPIHJo3ijV98ki384LtFI0aM3lvLCMLKwA+Fh/DyFwMHPfFs9P02VoYntYmKloY18rblHxgMSckZJA/r3rI3Rz8QzqBtCruzbO9Z7mXqwbLz0+KvxQiDJpuqCJmwois1GhkSlkHb5SzBIDFXeRL0JX0mgk9A8M+2HVLCHULTWJJZ4mtbhIpzbuJFuGjPlbWhjLEFsKxwcD4uOtRuvezuzuPdryyEULm7h82HzQw93D4kISRgQOvKn0/hxniti/jq639BaO0MvYxUm8elce+Zcx1atST5LJ74wW3slJAUyu2IfUevZpYbItNkMlSeKw0sTNXrJV9ZrMWZ7L/FqazJqOkXerTrqbyS3umrceU1rM0RD+7sxZSHkyyIW2sGIKjzAQcDxx4ea0921CxskktIoRaXr26rvjSRRGJAqliRjBJPQE/bNfTLrtkdobv3l1R2llUtYDf+3d6zYjJY6xNLFaq7okbIbeuULDPPN60FtqthZ5XkmhCWvWAkjdR1jTfE2peHPFviO5eI20kn+tQ3FtI7+bA9ygESFmG4SJjzEZAwI2nIORUte6LY6zoOmWiFJxA9k0cowUCRbdykMfLkDKNjg/xfDndxV09OOsG68xkI7Vzcd+e/mxjMBY4tuz2IJpa+MigkXkAmb1F9dV/rkeViAHIN3SvEeqXmpRyrdXHm3yWtjMryyHZCbmFAmcZOQzO2RlmOeBWFqmiWtpBIsVvCYo1mlUtCFUSJDIc7c71Ea8p2BGDxjO7ziavyOLx1Ljt+To06vHPPHy9aKHjk+/BTjn9vOvpvbJ5VvBHkkxwxISTkkpGq5J7njk960/kbc7tnO52bPrkk5x96qGr1cKaUppSmlKaUppSmlKkcc8fsy/8AzU8/24OuJAJBPb9eQR+oFK+fP1lyybW+JXqns5wEfbnVXqjgxD9KFExe+s5Vr8LwQndXWJ1j5BAYAcHnn5Ne0dBp/jDxFAQ0fu2r6kgCjI2C8uDGcHjhSARycgHjArfDwvatceE9KunG43GnWMnmZ5YtbIzZ9AC3HpgjuKvDcW4oKW1chlckkvyWOxdvITLGFMrQ1K0k0kcPJCvPKE9ONX4QyvGDyDrqFjm9u7WzSbY13PBbhiCQvnOEDcAklC24ABsKrswABq2sQtzISeYEadWZSHZofjEaDhWP8o3DPPXIx1meuu7ac+4t7zZeSzm2kuY3CY/IPRxGNqvFGlFGrV4hJYkQIyyTWXsyuwe7LIyzQwV/VNX1+10Gc6JoMVi/uccUN/f3FutxNdXDAiZkmJHIZQ2U2xx58uALGStX9M8K32uINV1S8uMXB32ltDKIUtoOzGILkFicMrEtuz2qem13BSGzsDOZSpPGpf8Aw5uKdM3tnOIkT+tjMjXljWSqtlGkrx5CsVkgLRyFgiyNrhpHiSwvruKDxBZWQLkJHqulwtaXthcbsR3MRRsNHHw7pICHIwxCc1e1PwZqFtBJJpl9OZUQySWd2q3VtcQ8+ZA2/ayySLkRyJlkJBQEisidKOquJ2ktWpjcXkoenW+/Xu19suhtf8Lt6RyTncmEhlhUIu37lpZpl5WGBLML2IVjnnmSzNeK4tJ1BLx9Svov+0Hh1CvvJURr4h0q4WKSwvDCMxvdhWIYxna20gnFdc0XSdUt3s0tLZm0rUZJjFCxLHSbq1kzPbAsAwHmHdl+eR3rk18OWc/x/wDEz0Q2lie8Y7cnWLpriZKxACSpa3hiEsFoh4CfLeqzKSeO093gg6jvANlHqPiXQbYDKS6xp6Njqyi9gZiwzwAiF2C9ArKKmPF1u1h4b1y6uDmW30y9lUnBxIYSoGR8JyXI46Z4z2+h2v6fqWP/AKv/AN19PB8/n/fj9K0RqbSlNKU0pTSlNKU0pTSlSt4Vj+gJH+o8j/zpSvnkfiQU5dh/iA/FPFGrR+n1q3Pm68SqVRIdypQ3JGnbyoEbJlw4PJ5DeoPfXy99tNiy+0fxdaqCgbVpZFI6qk8cVymMgkk+c5HPQjB9PoJ7LNt97P8AwzJtWQLp4ikz/FJBNLCwbnoohQfXO3AOK4f9TevuXye0f8DrQiSHeVTKbVlsiWQTwNfxVhastdlKr6nzBXvEoYdp+gKQWXqfgfQ1Gp/6pcXAQ6DLaapHtQLvWK6Ec6yN8WUMEjhuhOcjPFS3iLSTbxwwJnbqcjWYYEZSRo2lhMYP/uF08oZyNrt8sY2pbprbjw+Iv1ikMclCvFLAjEitYqwrWs0yqnhWrTwywtGfqBTkgdwGrWraRcafquoxzeY269mmid0J3wznzIpQeQ6OjAIVJGBgjOTXbtGMNxpllKgQlovLaNTlYJY/hkhA27gRgsQ4Bwc5I6xivrBI8rTCIRK0kk7uIEhRRy0jyMwVEC897OVA88888DGFpJKF8qJtzMqDylZmd34CAAE5YnGBnJIDEDJGbI0Q3PLtCIrO5b8kaRgM7tyAAgGT1IA4B6VTdlWZ5sXlMjGjLSzO4szkaAEjKslJpY6sVpEbwqXJKj2F4URvGY5FB7+5p7xg6re6VYySZm0/RdOsr4qqsTOiOxjm2g/FGjKpQE7OVPOa6voaLLZ3s1uE8i71O+vLcjcAY5HVVaMNhlSTBkG8At+bArsg/C6wcm6Pj8+FbGeiHWHqxjM7LGQZFeHa+JzO45GIHA7VGKEhLDgdncQRr0n2I2a3XjLw+AA3kaksrE9SsMUkuMYB/IOc8nJJJFefe1qb3Xwdr+4bfN04Rp1wWmnhgJBz1y4Cn7Z5r6GEf/LQn37F5/1IBPn9z/vr6K5zz1zzn1rRMDAxjGOMemO32qfSlNKU0pTSlNKU0pTSlQI5BH6gj/fT9/vNK0IvxucANvfiI9b5Uj7Y8/S6a7n7hyvecp0825WkYA+7CTGPEWBK+ojAHkePnN7f7MW/tS1dif8A1lppt2RgYO+0SM4x1OyNAT1yCM85re/2E3azez3TImbm2u9RtyOTge+STAEjJ589iOOmz+XFdCG89z5GpNisZuGBa+SoboxmVx1+FTFjspi4LZEskLkt8vbrVZOZ4iw/oYuIySHueGdEsZI7+90eZ5bW60O7s7qylYPd2t6yIyqyEBngZlYq3JUsOmC1dh1zWbqCWztNUiRJ7XWbW6tLna6W1zaIXBmUhSUuI1YfCThwOgzip83uPb1LIy28LuaXGZCeV5LkGFSLMVLrsf8AnWseiyV1n8k+srpJISWcM31mzp+k61Papb6rosd7bxgJHLqEospoIsEBBchy2zH5MqSuOCBis281LSYrlp9O1aa0u5SHmXT4DewXEh6ObQDAfHDYYZ6AetT2/Xl3LFHfzuSz2TrLNJ6WNyNRMJTk9Mx9szY6owWxFIzcxtYdx9LgKjju1HavdJoJNvpNlpVnK0Z/8VaXDapPEX4dEuZFQI56MyKSBwCaktN099YRbnU7zU71VcutrcW6aXESrfA72yFjInQqrHHduazhXvGOtFHH6aLEojjjRQixooAAAX6AoUKO1fpAA4AGvL5IPMkeSRneR2ZnZ2ZmdmJySSckknkk84+fPcmjQRoNiqsYwFUBUUAYGFXAz26cDIziu3z8DjDncX4iXSOxLGZYttbX6q7nchQRE9TYuSxNdz79o+YzkcQPBJLheDyedifw7WofxfbO6nba2+oTqRhmLrbeWp47FHcDnIJHyrXX29zGHwddxKwHvF1YQ4P8pujOV4x3iRsDIKgjqa3ylHCqP0AH/j99b5DoPoK0oznn15/rUdVpTSlNKU0pTSlNKU0pTSlaS35hXbLYr418FmljCLuroVsO8ZPczz4jO7zwk7Dx28JDWpIPfyD5HI40K/Exa+T4+026CFRd6Fa/FztfyJriMg47qGUZ9CAa3M/DzeB/CGoRbl3WetzDH8q3FtbyLnAI+JlkA7/CcY6Vr15zE43O03oZSutiAkMCCRLBKnhZ68wHdFNHx9LqPqBKMrRkg+NaTql9o9yt1ZSmN142nmKWNs71lj/i3A4yTkevTHvd3ZWWrW5tryLzY3JcMAd0EpGBJA7fEjAjOMFTjpzWMMVjsztLKV8K1CHMYW7LJ8nma9GCHIUSoMpXLSQoEmjAA4kcRy/9iWfzAvfdRutK8RWM2pi9bTNUtIx7xpzzO1pcOcIPcYGYlMjllDMM5JYZ2jrem2t/oF/Fp7WS6hpl0zG1v0gHvcCjJIvJVwZXDYAYqnAxtJAqu7iOTbHtPjJsjHchmqqkeO9MzWEmuQQzxyhopW7Iq8s0ySJ2iKZFlcmNCpg9A9zN80d/HbSW8kczO10zIImjR2Ro33AAl1VXjP8A5iHYCrHNT+srdC3L2D3KSiaFAlogYvHJKqzM6bdxEaAuJQV8hj5jB1yD7mKye8PncXUt4y+cfFksuk92QRMbVA2b8VA5CQr3LLXrRVp6s1b0a1gugsd0jIDl6lZ+Fjp19cW13ZNqEtlp+23RiWhuTFBLcCxQkbVeWSaN4naV128NwBUTaXniL3+C3ntrqSz96vm80qMyWYeUWi3MoGHlFv5Myz7Y0kJChTnNbJX5dXbH8X+MXqDuOSDtTaPw/wC5jGzjkxWdy7z2XioWUjkKzQVLkagcgo8njXr/AOGyzQ65qVyGV/IsJwWUksGmmto8Yx8IBJXJ5zketeF/iHvHXw/p0BXHvGrryMglLe0uj8XA53Mpz+XI6jKmt1hf6V59+B/7a3OXoPoOvXpWo/0qOq0ppSmlKaUppSmlKaUppStTH8yL05vxbz+G/qwJK5oZXam9Om0kXdIlqPIYDMVN3VpXUoI/lZaW4bSRyeoXWaGRSnayPrTf8UumSLeeE9aGPKaG+0tlKjesqTJOHds4IdJRtAXAAPJHwrtJ+HLUUa38S6R5Z87zrPUkLsNrRvG8DIuMfkZcZcBhyCCOTqwz/wAuQhlXyeSwII9/HgeP3+545PvrV5eRxzgDOB0+3pnpW1NuwAZCeBzySTnJyPp/fpjkZtvK2MoJoPkK2Nkrsv8AOW1atV5Q3coBi9KvYjZPT7jxIEIkAAYIeRN6emnvG3vc13HKJCF8mGOaMR4yA+91P58ngEdOmOaXUl8kqe6R23lMuHM080Lbx/M0RwwxjAZFx1B7V4cH/E2ed8nHjYeGUVhQnsTMyeS/zIsRxBGBCdgi70IDd3+Ua56uNORYksJLuTK5uPeYYYhuz0QxHOD1AY8D581c08XziQ3sdohD5gNpNNKSgOdziY/Dn8pBwxHXgCr8hVWVQo9yAPJPJPI5HA48+3af0J5HGurszEnPGD35IweCcnPGeDjknHOakZxlS4J3/Dj4jtYqMKuOi7MAKcDaAFGAMVtRflsun1s5n4nup0orijWxHTjp9W7+83JL1m5n91ZHtBjCrTStWxf1Fw0k7lewel3Hcn8MunSCx8QanKQd72lpFhcNsKmcsTuOTuUbjxlgCckGtN/xF6gHu9C03IJUXt264zgF1hUMx/MxzJuPOeDmtrjW1IGAB6DFazU1WlNKU0pTSlNKU0pTSlNKVrs/mMNn5LMfDn0O3RViqvT2z1dymPvSSW4YrSybm2VkFprWquRNbSSXDSm00IYV0jjklCqysutP4mNNnu/CehzwsmbXXFQhmALG5gKRxqpyTkREZwFU7VYjcoPvHsBv4bTxJq1tIGDXeks8bA7VVraUOxkbBUKVkJw3LMFwCQcaX+Qp2kZ+6JyO/wAFVBHv54I8Eew8H3A+3OtLljZAOCpwAchgcjqDx1B6jseOtbhRXKchZeMDGMHIzxnGT07nGTmqBchnBQeg4Paf+m3PB48g8f5ufYePHgcknWVEdoILY+5AOevBPX1z+nSr4vi5CghiSB8I3Mew3AEkc/I81CkJVdWNaTww4+lvqIAHgEe3j345J8Aca5TKCpVWBPy64x2x35564A59KzYLllDlmZSfzAICAQcbiARyRxntjrzV90hPKIYo6kjsyrxwpLMxbweFU/fggHjkAc8e2o1LKaWVUAfl+QAORnsTjPX51cmvohGS8qoCBgudoz6DPcDkgZOOe1bpX5ePY+V298LPVPdWSpLVi3l1msx42QyxNPYq7V2jgMZZM1dP51YwZG5aijWwEaZf50Seiyu++v4fdNaw8HXMxAxd6k2xsg7hbW0ET8DlQspkBBx8e8gc5OjXt4v4rvxfBBG+82mmosgAYKrT3E8y4J4YtEY3LDIIKjPBA2Ade8V4lTSlNKU0pTSlNKU0pTSlNKVhTr58PPSH4m9gWumPWvZWO3xs61cgyaY+7Ndo28dl6aSx0szhstjLFPKYjLU0sWI4L1C3DL6NievKJq000Lwuu+H9J8S2D6ZrVjFf2MhDtDNkASIQY5EK4ZXRgHVgcBlBKtxUppGtapoN4moaReS2V2ilRJHtIZGxuR1ZWV1OBwQcEAjkCumjfn5dn4Rc9LLY2L1L67dO3lLstJc5tHe2KrluSqxR7o2q2VZEJAAmzE0hA4MhHnXkl7+H7wTcnMEur2mckhbqKYZJJ482I9+f0NemWntp8VRLtuoNMu843OYp4JT3JEkEqjLfxbkZe6qprA1/8tdtWRycX8XO5ool8RRZnontLJSBfsHnobxw6uf1Za8fJ9gBqCf8Nvh4HKa5qI5P5reJsAdPyyLz2JwM9hxUzF7dtTQgvoVsSO8eo3cQHPUAxuc46kuRnkAVHG/lvMNVkVpfi1nKp5HyvQLAiYg+477nUWyikfYhD5PPB9tUi/DfoUZUf65fbNxLKLeE9c9CWB5+Z46A1WT276m4YJoka7s5LapdMCD2wI1P7/rmzZn5enoHjbkFjfvXnrJu+CB0dqG3cVsDp9Wn7GDem9ing8/k442PIPp3kkCsQsgIDamrL2AeEbeVDc3ep3hjO8bmigU5PTMQ3cDjnIx1yahrv20eIplItbLT7Zj+WSTz7qRD6qXkRB26xngYrui6AfD70u+GbpxjOlfSHb77d2ljbd/JGGzk7+ZyWRy+VkjlymYy2Wyc9i5fyN+SKL1ppHSNI4YYK8EFeGOJfY9E0TTvD+nw6ZpduLe0hLsqb2dmeQhnkkduWdjksccnn1rzDVtX1DXL+bUtTn8+7nCB2CoiKqDaiIqKuFUYC+g4x3rNmpao2mlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKkcMVPb7/AOpHP9wDx/tx+pGgAJGc4BB45zg9OccVRs4IGMkHG4kDOON2BnaTwxHIByATXCqX4kOpu3MhvmlubojvzL/wfNZ2ptmxszaW5rGMv47GWq2PxlibIXFtz5Y5qWxJk69vGYihGuIx2UIoz5BMbUynXhrN1DJeJPpV7IYnm93Nva3BjkRGVYstIXYiXcXDogURxTNtOI0f3b/un8KapZ+G7nSPaT4Wsvf7DTpdYh8Qa7pUF3Z3t1ay3d5CttCbeGyXTxAtm8d5f3BkvL6wX3hI3vJ7PKHSD4gMV1So4R4dr7zxl7Jrlqt6Wfa+dG3sZmtuSy4/PYyzuKxRr0Ip4szRylClG7Caw1MLKkFieOA5+n6rFqMcJjt7mNpRNuLwS+VG9uzRyo8xUKMSI6ANtYlDkA8V07xx7OL7wRf6tBPrGh39tYGwmtTb6tYNqF9p2rRR3enXsOlx3Ety0b2FzZXVw6qIo1uQYmmhVpR//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEEAwEBAAAAAAAAAAAAAAYFCAkKAQQHAgv/xAA1EAABAwQBAwMCBQIFBQAAAAABAgMEAAUGESEHEjEIE0EiUQkUFTJhI3EWFzNCgSQ2kZKh/8QAHQEBAAAHAQEAAAAAAAAAAAAAAAIEBQYHCAkBA//EAD0RAAEEAQMCBAMGBAUCBwAAAAECAwQRAAUSIQYxBxNBURQiYQgVMnGBkSNCodEWJCVS8DPBNENVgpKx4f/aAAwDAQACEQMRAD8A3+KYxTGKYxTGKYxTGKYxTGKYxTGKYxTGKYxTGKYxTGKYxTGKYxTGKYxXli6sX7ev7YxXuMUximMUximMUximMUximMUximM4JCQVKIAA2SSAAB5JJ4AH3NCa5xnkVx624TbMufxCS7PMmJ7KJd0aipdtEaS+0h9MZclL3vKWhpxtTzjUdxlor7FOdyXOyRGoRvilRCpQdTtuxSSVC6Cro0CLr3Psc+pZWGw6duxVAfML5KhyP/aclsvqFgsAAzcxxiGD26Mu+W6MnatBI7nn0AdxIA3rZ488VHInRIpqRKisCyLekNNgH6hSh3Ptf9RcKG3HFBLba1nnhCVKPHttSb/tyLGW45X6iks3V+Xit3sM22Q3HYce3PyYS270truLkj8+iWh6Kpxf0xRHCuxgByQglwpRbmodTac1HkPQ5kSXIbDiG2WpA2vuJSVIb3AjaSoAFV0kG+RYM41p0pa0pcjyG02kqKmHQUoUa3UUGwaPYH097HmWA+uh+S8q3dUOll9xyahyQ01NxCWzmUCd7ALgMSHFdVc1rWwA9oe4khXYyuQvXdiPpvxx1B51cTqzoXV9GkocW0yvSnRriJu2yVRIsdKpa0Ukq3nckmg2pW4gXNN6QQlKHNM1WPMSUJU4h9tcJxlSttocU78hUkmjyOCDz2Hvrvqh6Zy8cF8x6dIuk8vMNHG7nCuWMX1lK1gvuyrfe4MeTHaZaCwl/wBhxh58tstunuWpGWdM640LWGPMhuymZCUhS4GowZmlz2/9wXGnMMqUEjne3vbPov1y25OlTYrnlvNJvdt3tuIeaJ9KcaK0c/UgDuTVXLIXXrplMgJmnIPy7gZQ69bXoE83RgrTsNuw2I7yioqBShxlTrLmu5txSdqFca1iC6k7HFqWEpWWyy8lwJcFosKTySPY0f5SRksqK+k8pSB6K3pq/UGyK+l9/wBMkuM9T8Gy55MSy3+I5cShS1WqUVQbo32bDiVQpQadKkEfWGwsAEK32kGppmdHfHyL+btsVSF36jaspNj1FX61V58ltrbFkcXVg2P0I4P0rj68i59U3kGKYxTGKYxTGKYxTGdK4wI9zgyrfLQpyLMZXHfbS64ypbTg7VpDrSkONkp2O9CkqT8EGvCLFfl7j157f89+MG/Q0fyv+hzFj1qkSenee37HobkRUGK7Hm29EmL3rRCnsJlMNLUl33XSx3LjF9a+572vcUEqOhr74i9fal0nqsmOg6e6GW23mUyYJcIbdQVgKW2tCxzYSUgkgeuXRpOlMT2G1r81PzKQopcUEqUk++0pSKIO3vdkGhz5Xb+oTNykr/UbRj00/wBJT7b8B11qQlCh7aXkyFvIPaobT9JKfgDXGK9I8eWp058z9H6YcdbTtceVCkIcWkWoBSnVKIAIogJFbgDfGXA904pltAjyprYBI221VKFqCTY3fKKr2rgE5OWc6sr/AGMs4diEVtrQAbt8JwAr0CexyC4EApOiEJJOuVAeLlT4+wHHC0NE6ebQ3QBZUpFgmlKILFk0L+Q3Q5oDJMdNvt7lfFzbXRokoJSaIHChVcngUa9Dned6g2u0sL/L2qyke2UFhqMmC2lo8lloxG0pQ2o/R2NtJSRodoAIqYl+P3TsFlTjULS1voaUS0A4yKAsoLyWisgmk8ba3bzYTR8T0w++7Tj8hCFEfxBtWo7SClSklR3Hjkqs0KN50HeptuejpdXjttdX7ZUlRmzAEEpPCQI3cCDsDXnY5ANSiftGae6je9pelrIaQUBUiYsp3ElSFqMdBWlKflBCwFA18osZF/hNYUpPxEj8dWUNc9+xLh9/fg0TzxlGYzyTMUUxbdbGkEfQsOy19uxwO1RQkKAAB7h8DQA0KnNN8b3dVkeXC0vR9hSVJTvfAShR+U/hC6TY+hv9c+bvTKGCFLkSN3ICShsmjYBNK2m7Nc/pkl6eSbtmfUDGcUZmx7ebpcf+qkwmVJfjw4kd+ZNdYdIUpEhUWO6yw8dhDzrZXtsuJN4dM+IMvXeoIOjIZ0tDslxfxBQ08paWGQXHSlRXyukbGydoJWVWQNpp83Smo0R+RvkKShP86AEWugk7roAHuTV+gNVmVax2hiw2qFaYz8ySxBZ9lt+fIMqY4nvWvuffUElxe1kb7QAkJSkBIArPOWtlVpjFMYpjFMYpjFMYpjMRnrpeNl6sW6UeBecMt7o3oBardOnxHCDsbP8AWaCzzoISDwBWiX2qZa9K16I/ZS3O0RtwKvguR33mqruQlBs9u4F85lHoZkyobrYFlmSVVW6wtKea73wQDXuLAy0DEL2lEmY46EkLZA+ojWirwNf7gdDn4Hx4rR7pzrERNR1JcrynG32VoG88BRJKdv1ABNm+9Ee+Spul+ayy0gFKkq3WU9+ANn8vJBrv3r9anOyNptayh3tUg7Tyk/HKTzyDoEeNEedVQNX62S9IdLTq2lXwpoKPAvaAU7eO6aB4s9++TUbRS2hAUAKuwoC7/LkGj35/rkMuuZSS257brjmgDwPBBH0g87O9nY42ePirWk9azi2pKFyFkKKTvLu1Q5ugTRNH0Paz7gVBnSWioJVSSrgkBNpN3YugO3b61XrnasuYOqhvpmJfQtOlMFwLCHEggqQVEAcJ/ad8n+TU7o/Xb6YsgTFOFaRvYUreR+K/LpXcbQar35F84l6EC4hTZQUkEmqUEmxQJCbHrxzwO4F5XIGcsREPKQ5/UUOxsb12nySdnRUkc63/AG51V+dO+LLOjtyd0goW6kBKShSq3HjaQe5vj2P5VlLk9MvvGyi0DYSeQk0bo0SeeLo370Bl1/osknJOs4mAFxmxYzfJq1+e1+R+UgxlEg65S7I4VzvQ551tl9lTqM9Y+IL8ob1J0rRNQlKcUFAFyQ4zGbSSrg0HF7fSkkk3V2H4gQF6boyUrBQJEphpCUgp3BsLdraSLSKsmjdAnjk5fa6N5hrFMYpjFMYpjFMYpjFMZiu/E0kQ7HaOleQPQoq1u3TJbNImONILyWf0+DcIscuHZLRkB90NcAuAq4G60k+2iyhHTXTU9cNl7bP1CGt5TYW4lCoqH22ySQrYVBagkKCSQDQPOZY8KGTJ1KeyldKSww4EbygE+apKlWPUJKRQruDftibhZ/DSQpttgJ0EnsU+0Sknj/SfH7d70ByR9jxyim6xFQ6pLkdgJAKQpDL7W0kkXtbc23fN1d8kq7HZePoK3CLUqqsFSm+CBdcpBHJA43KV6++V5WY2EoSt9LhJH1ALdGyFDZ+p0k6BIPKfBV86qFmboqggr37qpW34kJJs8k7ybAKgDW0g1yRYid0ScAry0NgCglRDd8GieEkmwSB3NEHtnWRmGKBR73Do6PYXFbTwNJHcVAj42RsE8b1uqgH+ngVEKXRO4fI8ogkDuSqz+n75T16HqZUSEJv/AHAgX+gArt/+XkpiZni8hrTaHClIH0qc4JH/AACfvyON+PtGZnT6WxSFk0SoLU9Vi6VYVfA9BVj35GS6tG1IK2EBBFAkpSur9bFnj29ffOjOv2Nv8MsIS4VFI2+4k7Vz4SobO/kkefIqgam5ozmxcVJCwfnCVOgHmv5vQA3XPr3JN1WJpuooSrzHEKCU0B5aQCAKv8IIAq/WvpxmUn8OqyW1cTqNkTELtlF2x2du4KJWRHU3KnPxWipR2gvIZWvY7iO0KJHFdQfsJ6Pp7OhdWaxGgHz3ZMGF8esqUvy0NKfXFb3D8JWAtfO5R28igM168Y35Im6XEedStCG5LnlpACdxUhIXQAPKSU88DnbRvMnldBcwtimMUximMUximMUximMxVfi5Q1t+nTHL80lXfZ+qFhZUpI2UsXey36O6skEdqUuQ47Z3wS4BzWqP2v8ATfjfC5mQKuF1FDUSBagiREmNECzXzKSlJ/Tiiby34LqB6vUyqgH9MlBNmrWy4y7x+aATRBuuPY65Vuy9xJT/AFf45Vo73yCQdAH7a5141XHPVdMBcXYtd2rgA7STVUTVAnmyBQo2Dm8cOElfloSkJ5IPAO48baIFHjk+lHvxlXkZk4pogv6I2QQv6hx9gfBGzwNk/PmqONNUhQKW3NgsklNoHdPzE3XIAHYXXvzWEaejt8hVZB/Ca4vsbsZG3M0Qwr3HpSG0EkpW+6hlBSn92lOrQj6dDvUP2eToaqdZ0mVKUluMzIeXuSnyo7S3l/N+FKUtJWbPNJq+5IoGvquAEJSo+UhJ/CVlCUkg0UjcU2R3UBZSnkiiDk0snUWBcILMqHOjyYzyVFuTEdQ+w97bi2HAhxpSkH23mnGl6KilxtaFAKQUiS1PRtR0ySuFOhyYkhsJ85iU04w83vQlxIU26EOC21pWFUApKklNg3lLGkoeIdZU0+2tRpxJQ4CUkJPKOL9+9eprk1f/ABkoq/pvnjk6V8Ega8caGuPk8GqSIJW4lOwglSeR3I9t34jfarr0rJn7p2ApKUJ+VX8oAqiSfzrjse2bFf4YDbkn0/XS+vBQXds9vLTWzsKi2u22dhpQPOwXn5KSAeFIPjeq7RfYf0xyF4OOyndxXP6o1RSSr1aix4UdBTyfl3h0J/Ij0GaJ+Oiko65ciIJKI2nRe42/M+p108DgXY+vA+mZIa3GzDeKYxTGKYxTGKYxTGKYzHX+KlaVXH0W9SJyUd6scu+DXxPG+zty212lxf3AS1d19xHPYVfG6wT9pCD8Z4R9SUmzGc0yZ+QZnshauxr+G4u/ft65kjwleLPXuiV/5ypTH0/iRHu/0sC/pmovGu5beV3K19R1ydDR/nxwPHP2+1cc9SgjzHEJQSQe/IPJIogp52n3PqT750M08fKglNAcXXFEUL23XJ9hYHF8Z8zL4W0vuF1pCewrU644FdrbLTWg8tO3igJbkOnsJIWtPc2UtVMtx48ltDDosK2NltsOoC1uEgBtCAASlflt3xaObBAqbbiupcccSKAC17lbCVJT2ClXuHmJsmlClfQ5YnlDeZZZKbzHPP0qJh9ycZcVj+L3ZuZcIuOJW8zBvmSxskfjhm3lMOz3y6ycGebuMdDKopizWpb7tr3B6T1HpvpyO90Z0PHky9a01S0L1bXNGWmHJ1Nbcd3UdOgajpTTiC8ytyVA09rXEriOOEKQ+0pAS/irUoOvakUa51B5cfSXSHvgdIlNqfiw0lbceZLYmrJbbXTDsxenJ85PlOBxBUV7Pb/T3d7+lGSzEZVbb905lOW1nEm/1SdfL7ByKMiS9nxm3kTLlZbjaX8gnOQre/arveFFdtUXbg8lrvlYb8dInT8qRozc6BI0zrVpiW9rDjMFjT4EjRpC0I6aSqGhhmQzqjOnxGXZTLjMYNx5SSlhKilDV39BR9YS1qD8V+PO6fUtj7sSqQuTKTLbKxq581S3GVQ3HHUCKWnXaSwFmQ6kkrutt91Lq0BLhP7SQPCgSfgkfA2ed70SBwDra3pqvMQrjhQJ5FUDYF0aB4rgn35Jy/8AUAC2aBSnaobkgWK9uw739LHrwTt0/hxWYWj0f9KHFp7X721k19f2nt3+eym7txlEaGyqDGiHfz552DXa77MGl/dfgn0YgpKFzGNQ1BY7WZOoyCg16/wktgK9aNWKOc0fF+UZXiL1GdxUlh+PGT6V5MRhKk1ZqlA8A0LNcZfLWwGY1xTGKYxTGKYxTGKYxTGWh+viym/+jf1DwQj3Cx04u167dd3/AG47GyEq189n6X3/AMdu/isa+MMQzvDHrWOK3HQpTyLF/NG2yE8ck0Wrod8u/oCR8N1p009dAatGbV7lLxLJA79w5X9+2aQ9yeVHkrShRT9Sv4GwSBob8k65IOtAfzXG+Sw2t5272hSgCDx8xND6enHBH550w0tJ8gFXqUpJAoEJBFgVXN3x3PFemQu/5Oi0Nxg5FuN1mTXzHhWy0R2JdymOto95/wBpqTJhxUMR2dLkvy5LEZoOsoWtTr7DLs7pHT7upLfU1IhQI0JpEmVqGovqjw4qVr8ppSnENuvOuLdtLceO2txYStSvLSkKM7JlMwfJPkyJDzzpRHjRmw846pCA4olv5U+WhFFSlkJIJ4UAUnG1LzHr7d7dnjU/GsPsVrtrF7nYjCusSTLvDWLX0ZZarbj7Tzc1xcuVFnRLrEdTGdMsPT/0uQ9+SegsubxaXpPQOkvaS9B1bWNRmvuaZ98TNPlIbgK1uEzpLrmsSEKjoRFEmO5Ae2qQUvNtfEtJS8ZDxwK9N60mxNaTI0zR9PhMomP6XG1Bp1clWlyTLQ3p0cJcV570V5KkqdWoKYcd2NlCFFKrzvTmvMY+MS3eoEaNYcuuIsNwueKQLam02uxIFjiW5iRb47EmVAU/ePyJevKre8WG7hGSyttpzSVateNytCl6ppjvS6l6hobDWrwY+vSNSc1KdqslyeqfIjy3nkplI+7zLU1DakhTgiOpWhxbdbMxeHrGqs6U+jXkMQtUkJgvPaYxGEKJDZENDKFx0A+Qsy3m1rfWwnYuRYreSkXfY/ILkhslZITpR3rXaP8Adz2jXB/vrR3WBQypKqCKTyBZsXtJrk3djtxzxl3zGQWVJKk8jamqPKvxce1Entz62O2756TsfOL+mjoVZVJKHYvS3DXJKCNalzbNGuEw60D9UqW8rnZ55Oya7keE+nfdXht0NAKChUbpfSEqSRtpTkVL6/l9Ny3FK/I5yl64kib1l1TLBsP69qakn3QmUttH7IbT/c8HLhayFlrYpjFMYpjFMYpjFMYpjPJ+vNiGT9EOr+OFv3f1zplnNqDeu73DNxm5sBGtEEqK9DY5OhydCrc6vjfG9K9RxO/xOh6szXvvgSAK+oNEHuK4yqaG/wDC63o8kmgxqkB5R9ktymlqP/xBz8/vqG5kLVvU5izcRy7KdgLbbne0Y5iuLSud3e46yn3AyT7IDiV+6R293KTxz0ZnQTr2zqdbrWkKYkB91gPpebfW0pLCgY6HVgeaQpwlFbEqFpPOdNQ5qQ0gHSdjk3zWtqHEeY2plSkl5ZTuRakt/Milj56CuCc8XmO5NMVJn3KPlSJOPS4QxyRZolsRNnMz4RRe5c+wlTlouv5KQVRG4aUJalQ2mJcSPJf9lxV6No6XihEDTp3THwusRZZ1tjV5k56Gy5Dkl3S4rGppYZ1HT3H20+a4+lzczLdUwpXkhaM+9am8VTpMbUkSdOcaMB6CiMiQtUtsJlKchrcdiPpaWtbTDa0rHlN71Eu0UxB/D8PeUl+Xi3Ui5zJrEuTJvCo1wYnPyl3B2f7cuCp9sW59+5xW7hHZiRYluSpcRbyvyykoFfidSdTq81mL1R4fwYsWVEjs6YXo0iGiH8CxELkZ9CAuS1HhLTAcLsiRLWA6lstqZ3K8Oi6NaFO6V1HIdkMSFrlJS6Hg6uQ5ICHGiUpjLclBUlKENNsKpsKSUlWTi3Kny7iuahHVK4XKSzaDHuynYmKWG5xUsJnR2JrcCMWILMJ+S8zdS/b27hLlGQAzKTHSU21OZjxNPRp8id4faZpsZ3VHZWjJaf6h1SJOLyofxEJyS4XZMqU22k6ehnUEsMwGUKX5YX5btTZU64+qYlnqaXJfENDGoKea02DKjhtL3kuttpS2yxFK1BxHwaFuPFakA0g5drhURVyucK3sqJenSG4LGhyXprqYrP071/qvICk7OvCSdisJRYpkTWIyRuMiSwwg1RUp55DKfRZKjuBF2rcaJ4vKprk7yIMl5RoNMPukbqQA22tzgBRUkEg/KCdp7n2348PtqLNieMWdpIQ3asesltbQAB2IhWyLGSnQ44Deq7u6RG+C0nS4dbfhNOhRto7DyIzTVDgdtldh+QzklMfMmZLkqNqkSX31HvZddW4TZ5PKvXJHVRyWxTGKYxTGKYxTGKYxTGUq9xBPtFzglPcJtvnRCNb3+Zhvsa1879zWtje/PwZaY0l+LIYULS8w+0oD1S4y4kj25BNX65G24WnEODuhbahzXIWkjn055v8A+u+fnxdRogsmSX6yKSEfo95utp0CB7f6VcZUAo18BIjduvPHGxXFfqHT1RtZ1Bg2hUefLj7f5khl9SBfPc12F3XJ7Z1F6cmCRp0B0AFLsWO6XAVD/qMNuhQs3+FQ57AAHnvnk8iSAF9oBJJUQTsAb38cH51o/H88U0xykcA12utquPZPHvQ7cd+MvKGfmVtI4AIoggc3+9n0sXZs2Mp7c1KT9QGu472kA74Ov5GvPGtk7G+K+aoinCk8gg2kqBFEjbx9aPeySAfzyohyhQCSf5u10aJUqxzyBdmye3plejTt6UCBwONnZ8fYDg6HOzvXjipJ5hSAUGze4q4sBRABJFnkgJ544SOaFZ8FyQnuCSASkCyDxXzewPAv0F5df6W7SrLOtvSLHWkqdcvXUjB4ZToq7mjkdukPpA2SQ4wy6gjX7SQeeRcHQWjnU+uukYYBUiV1Fo7ZSbNpTMZcXQ/CTtQT2rjniqxx4haj8F0p1DJoDZo2or3BX4FGMtKCeLG5ShVdjzeb5aAEpCQAAklKQBoBKSQkAfAAAAH2rtmO36n+hof0r/vnMLj07UM+q9ximMUximMUximMUximM+VgEckgBSVf+qgef442a8I7elEH/n59v1wRff6H9jY/rmgj64rVbMG9U3qAxS3B6PBsnVnNY8Vpxz3FoTJuztzUlS1aWoe7PWUb3psoQn6UgVyc8U9BTA8QerY0ZoJjt65OUhKl2QFu+YpKSRdgqUBydvZN1nRbw01Byf0Z0484vc4vTIiVGhX8JoM3Q54DYSbNkg1VZZPKvSQVFDhJOwBxrXkDW/jaj9ufPwbFENZHDR72Be70APfaOeD3Ff0zK8Z1NDaVCxStu4EkWaFWaHHeyRlLF67lBJUhWjyUnggcng7/ALfx4PPiP4BYG7y1Wewocex5UE+n+49/zz7LeA3DcoE8G7B7dr4s2PXj9Mq8a/pQoJDmt7GlDggkf3H8AHjj453LSNOUSSWVC0mwSKH696H9x2rICoq9VKrizZo+3PJP0HOZUPworNDzj1rdELbJDjqLReLzlyUtkJSHsTx253iN7p0srZS+y2pbZ7UqCdFWjxlLwB6fbm+LfS3nIUUQnZGoCidu+LFedb+XkLBVtBB4A7+hOGfHWYqB4ea6tFBcpuLBIKSBtkS2ULHf1b3AcHbX55u5NjTaB40lO/76G/8A7XVBP4R37eps/v6/Q+2c9B29vp7D0HN9s+6iz3FMYpjFMYpjFMYpjFMZwobBH3BH/kapjNNL8YP0WdfMc9TPUvrRg3R7OMy6TdRptuypGTYfBl5imDkEqzQmsoZv1vszMu642yi7RnlQnJ8JFrVFW0tq4lbqmm9L/Gjw21N3qXUNehaVMlQNSKJCnobapSm5JQgSQ800lTrSVLR5iSUUUqJsAEnbfwd6/wBJa0CFok/VYkXUISnWG2JS0xUuRQ4pTKmn1kNO7UGlguBSVnbRSpOYJ5ca4RnZEe5W28WuVFKkyY8+HJhvMr2oBt1mShtxDo0StKkI7Ryd7Fa9v6N8KShbbjLoNKbdbcaX7bgFpSo2B2AIABH1GwsbXkLAWy8w6hQBbWy8hxB3CudiyCCLF3RI/eitPxVvJbTJXsK0QkgLAHJ2QSCSdcDuIJHnkmSVDQjnuSpKTSwTSiBdE9k2D+Q7EcGaOpuu2kJSSPmISFBQ7g2VEDsfQn0AytJbkuSWGIEK6znZKkIjsQoD8x15xZ0hDYYbcWtS1fSkJSSSFDWz2mJrTRLc8tpLrxo2llLjxN0KCW0qu7/IcDveQu64qOCXn47aRe5TzzbSUiuFFa1hIJVSas+4FWc2OPwMvSh1mt/qBldduofSzPcJwLF8AySDieQ5fbZGLMX3J8n/ACVoSxarTdWGLreYiMffvT7lwYjNW2O6IxRNedWGDst9n3oDUoPUjvUs/R58GLG01+PEkTWlRAuRLptxMZpxKXX0+SpwOOBKUNqO0KUavWzx4680zUtCY6fgapDmypE9l6YxEUiUlliMlS0lyS2fKbcL4QPJSpbhSCSEizm2d4rcntmp2KYxTGKYxTGKYxTGKYxTGKYzjQHgAf8AFeUPYYyL5FhGHZehLeVYpjOStJR7aW8gsFpvaAg72kJucSUAk75TrtPyDs1KSIEKXxKiRZKfUSIzDw+leY2r9b/TPuzKlRuY8mRHN3bD7rJ/dtSTx3BBB9Dxnng9Nvp89wPf5F9GvdB7vc/yswP3O4+Vd/6AF9x+TsVTv8MdOnk6DohUTZUdJ08k83z/AJfv25vJ/wC/9d/9a1avT/UZnA9v+t/bJ1jvTvBMRUleL4XiONqSnsSrH8YsdlUlJ8pSq2QIpCSOCkaGqno+l6dE/wDCwIUbkH+BEjs9rqvKbRzz37j0rnJF6ZMkm5UuTJ+r7zrp73ZKln+x9Rkx0N70N+N6519t1P5L5zTGKYxTGKYxTGKYxTGKYxTGKYxTGKYxTGKYxTGKYxTGcK2Ae0An42SBv42QCQCdAkA63vR1qvDYHHe/r/29u/8AT1vH/P8AnI/a+cs1j+pvOYD1+g5N0Mz5M8XS7xMVcxzHMmullkxYjirdbXMiuy7Ih22GZeEkyJMS3zGI+PkX5pt9opjrtlOvS0F5MjSZgXvcTHLLL7jKglXlJU855O5rc/xYSR8P/mRY+TM/PeD3TUlvTJGk+JXS/wAL8NCc1xOp6ppMfUWXXmTPlfdMFvUSiYljTqQ2y9KZdXrP+juLadX5rfqfSbrzYuqtnxufCx7MbRLvpukWTEuWK39mLZbtYFORL5bbtdnrcxb4D8S6w7jb2G5Tzch9cVAdYjSnxERUdO1dnUWmHEMyWi95qVIcjvANOMEtvNuuFtKEKS6laEhRtW0GgTtFldc+GeqdD6lq8KVq3T+oM6YYbzEiHrOmre1OBqaUSNMnQICJTkuSxI0+REmLdbQppCHiW3HmkpeX/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAIBBQEBAQAAAAAAAAAAAAcKCAIEBQYJCwED/8QANBAAAgIBAwMDAgQFBAMBAAAAAQIDBAUABhEHEiEIEzEiQQkKFBUWI1FhcTJCU5EzYoGh/8QAHQEBAAEEAwEAAAAAAAAAAAAAAAgEBQYHAQMJAv/EADsRAAIBAwMCBAQFAQYGAwAAAAECAwAEEQUSIQYxEyJBUQcUYXEIIzJCgZEVJDNyofAWNFJisfHB0eH/2gAMAwEAAhEDEQA/AL/GlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppShIHyQP86UrbzWq9ft96aKIyHtjEkscZkYKzFU9xlDsFRmKqSQqsxHaCR8PJGhAd0UnsGZVJPJwNxGSQD29j7UAJOAPqfXAzjPHNQTu71Sen7YuZr4HdXVTamKyM8xryd942KWPm+y5fJ047GOxAJ8B8jarJ8nu486w/V/iH0ZoMsMOrdQWFq80hjBEjTxxMG24uZrZJYbbz+U+O6AMcEjki7WmhaxfI8lpp9zOqKWbZGS20AklVOGbAGSFBPsDUqHfWy1x9HLNuzbgxeUSOTGZL97xjUchHKAYnpWltNDZSQEFGhdw/ICkk8ayBta0pYLe5bUbIQXXhG2l+ag8OfxseEIXD7ZDLkCJVJaQkBATxVB8tch5Izbzh4iRIpicNGQcHeCoKYI53AEHg4ORW+pbm27kiRjc7h8gVIVlpZSjZZXY8KjJFYZw5+yFQx+ACfGqoXlqzbBcQlz2XxY9x+y7t38EAn0BFdWxwAdrYPbKkZ+xIA/nNdd3P1U6bbLuUcfu/fe09s3snYiqUKecz+MxtqzPP3e0iwWbKSoJPbcI8qxxsylQxPjVNdaxpdlIkV5qFnaySMqolxcRROWc4RWV2BQv+zcBvPC5PFd0FpdXSs9vbTzKqszNHE7gBP18qDyvqO4AJ7Amu2xZfFzxRTw5CjLDOnuQzR3KrxTRn/fFIspSRPj6kJHkDnnxqv8RSAQQVPKsCpVgfVWzgj7H7V0EEEgggjuGBUjt3BAIxnByBzxW+SRJFDowZWHIKkMCDzwQQSCDweCCQfsTr6BB/pnuDx78EiuAc//AKCP/Na9c0ppSmlKaUppSmlKaUrE71iT9U9vdHd3dQulW8buAzOwtvZLcE2Drw0Vgz9am1ee601+zHJLVmoY6K1NViiBSzJ/KYBirDF+stS1LR+m9X1XSrdLq906xnvI7eSTwo5VgAklBcEYZIld1GfMAwwTgG76Fb2l5q1hZ3xZLa7uY7Z3QZZGmYRxkDscyFVI44Oc8VVl6hevD1GdYoxhNybyOdw+Ity5LG10yGSgkF1a09OWZnwmSxU3uCpZnrgtYKLFYlHHc54gX1f+IS+1+1Gn6zoiS2kbs4FlrF3YuzsrIW8W3mhcgxuyYwQEd+dxGySelfDXTdKYXMMzxzSKEzc2UVwvcH9E0bxqMjJJU8AHHFY4ReonclqU47cey4sph6debHezjxd92SEy+47me3nTYEzS9gmdbCe9Eoin9yPhdapTr74fyMFuelbkw/4JjXXrx2VdxJxLJcb8huVO/djALZGDmkfRk0JSa31VfE3iXMlhbjbIMgBFjiEWxcAjCghgWyc4qDsj1tjwmXVqmxcvFXjutNjxHuvcOOsVIo5BLHHDWgzz4+GOJiDIsNWONm4Zh3EnV+s+uOiTCscOk674cJbwd/Ut9Mbc5JTww0soikQ9jHtKAeVyRk3T/hLUJlJbVdOyykMH0iJmYN3Lyogdyf8ApJKg4YAHNTHjOvdyFDn8DiN4be3Dboz1sluChvaezlbEUx7jGl2yVlrCN29yOWB1sI7fTMFCgWnWviPpt9NA66dqkYtWLI5128Ny7uMAvIZyxZe6HJ2kgjkVRW3RhRyk91Y3KMy/lHS40jXB74UMHHuD5SODkGu8bS6xW8lj83cylvez5LJfo6eT3He3PWyuczX6Sw1xIrWSzj3pJ0glkd0HHZCzqI+FLq3fpnxC0q3lu7qG06mFxfeELppNeF6r/LuJIQseoeMsexslWQAgsWQgiqfUek5gbeFP7JdbZXMcZ0kwCMS4G7NqU8TjcCHUnnOcV2rFeonce36t7Fbb3Vu+vRtx1qxSTqNeq5DHwVLYtpDh7MGUrjF/z2cypTjijnjkliZSreNg6D8YZbV2gtrXXZo5pIwpvdd8SSJQwdgMYjjDnjw1wqqeMk1Yr/olJkV50sAUw2YNI8snlZfOZUkLeViQTg5C+bAINlX8NHeHU/qX0Wx28dw5d6uzKWXz23sDhrVyHc1vM/t7xJfy7bikuT366VM296gKU3uh2qyyRSLBIg1Nv4Y9RXXU/TUOqS2TWVv8xPBbCS6F28yQnbJIZAWIUS7lCkk5UjAxxHDrbS7fR9Zls4pvHmMUU0xWEQJEZQWjiEYVQD4RRjgYwVIznNemOtj1h1NKU0pTSlNKU0pTSldK6kYVNx9P974GSMSpmtobmxLREBhIMhhL1UL2nwSWkUj+4H+dWrW7Y3mk6naAZN1puoWwBGVzPaSoMjseTgZ9zVTZy+DdW02cGG5t5gckYMUyODwRntyPUceuD887F3rO0t85rEyyyMtK7Yq2AP8AUhpytBO5jHJZS8bF0CsBweD8nXjN1FE0EssLgK8U8sZAyCTE7xkHJ5O5SSDjk44FehMSR3On28wCM00MThSxAbfGjjnDHkEbuRkjjip7tVNuWNtpfrZOjHYtrNJ7bRvFY4Ys30mIjz9wv1N5HJ45Gtc3cKRHJcMc52FCBgkY5JIODyePT07jogkufmWhkhOEVWyjZTGcgZCjOAAPQ9yc81jwmErZDNyvLKlyKN0DR9kkcjxqe4r7jFvDcAEAp3cAMB8GrjvntbeJYlaINli4AwSvBIAwCM8gZz35PArIpZmWBSu5GKj+MgeUc4yOc49M1I+bXb9alJjIakdNpooI1jQKSGYcvzIO4kszhuSOT4HkDVP81M53bs45J2j6Hk4+nPb/AE4ttoJt+84YAFv8u0EkYHH19Oc545r+c214q2HpYqFwOQzSKOJHJmYM7sV57SWBBJPd2hQT889sOpyRSZyGbjAAB9fY8Hg55wB396uNu3iSyykEFnIA7LxgAenHJxjge+QKi8YWzt3OUradsoiuws4clu5VnRmRgCQEZR2twByCQQQTrYvTWppczxpISrO+7OwBcqMgAj0YjntyeT3r7vEWSCRWGQcH/LxjAPoM985++MYvL/hsbbG2PRR0ErtCYLOY2lNuu7GRwVt7pzOTzEgJH+oqliMFvPPjgkcE+rvwishYfDzpeHAVpdO+ccdvNeTyzkn3OGGTnOff9RgB19cG56w15yQRHfNbrj0W3RIQM5PGUOO3FZ0a2VWH00pTSlNKU0pTSlNKVolAMb8gMArHhhyp4B+lh91YeGH3UkffXDdjkZ4PHoeOx9wfY8U/32z/AKZGftkZqjR6ivTfU2N6v+uG38DHa/ZNvdSN0NiIrUi3Zxib2QOSpR2rPYncwW4yfVGv09icEL58hPjHoy6H1/1dpNtEwtbbWbmSDOWIhmb5mLcwUDKxy+Yk4bgkAHAm50l1KL7pHQZLl0+YksI4pGUFR4sK+AWC5POIxuznnOODXI5zpHgNxbeWOv2Y29CnYqqFMfuEAHuTgNH547ikiH7/AB9I1A0cUqiRSd6HacEAnJwcdtoGACD3I44OauEOtXlncjeTJA3mBOSwDEZG5lIPckYPGR2OawU3Pt/N9Pd2rjyzkByWaNTJE8QIcHslkX5QqQfqBH1A8NweQtvcW88crL4kBXYCVUgEYyMrhjng479+/NbBs7mLULTxMZ/aBgZzg4LE4GQM5wAucnPaucq3q2dna1bqzLI0g7XZURl7VADhRIwQ945HaxIAA5IB4x+4WW2YrFLkAEsFxhiDgA557EjAOCCa74YhCmwEEHuBwD6HOO4OT37jOe9SVh8BLlCSL8sbkDsPuh3CgD4PcxI54JIZDxyR51RRu29SYnLMT+kHbgjHrkDAz2OOOwr5eWKIYMakDHoAOT7YweT9B78DNcd/AF3K7xw22/100j5e/SpGSBQJIxdtV6pYd6SBZAs3MZIPDheVK+Bsbo63afUbC3UHdcXltAijlvzpUjP7WI/UQGCtg84K5FUN9fpBpt/dY2C1hkkKtjBSNC52gEcArkjOWwVHJq/P012VjenOwNmbDxCNHjNn7XwW2qSyOJJTDhsbXo980ihVkmlkikmldVRGkkYoiIVVfa3RtOi0nS9P0yAMILCytbOLdgsUt4Vjy3AyzEFmOByewORXnLfXUl9eXd5KQZbu5nuXx+kNNI0jBe/ALEDnsAPTnvGrpVLTSlNKU0pTSlNKU0pWlxyrD+qkf9g64PY49jTt/v8A+qqHfiPZhenvro64wCQww5iLYm4Yx3e2shzOycJbssvJ+1z9QjP5PcjcD+nl7+Jexk074o6/KvC38GmXZIGVZpNPhEn1CqyFckYAB5JyTLL4XRfP9G6WGbPgz31uCQCy7bpyACey7WXgMPQdq87d2ddDjkmmS0RGVb3VWTyo4IDeCCxXkeDwSvgDkDmMsMU9xMVtwSWcA5wfTGcfwBzW4LfRQyRbiNoH7lBI9GO0+nHfGSMHnvWOFnqg+fzMMosLZjr15pYvdBkB97hOx5GBPtkcgJyF7mJHHyLjPolzDbSTy28qM0qbm2HGM4J3dhkcEjKnPGeavcVokCpHG2zJ2gqeQAv7V7biP1f/ADxji9y9Y9o9Pzt6fda28fj9wZ6nt1MpVpvPisbcuKfYsZy6CsOKx80vZWjtzlozPJ2nhIpmWu6d6B1jrBtUTRxay3el6dLqT2c11HDd3kURHiRafA2TdzopLtEpHAxnzqaodT1e00RbVr1pRFeXSWqzhC0NvJIGEbXMgJ8GN2AQOQV3EFsICwyDxt2tEnvQSvDJwH7g/gqQTGVaNuCW8EEA/IK+DrFbW2ZJJEKkNGxXYylSGU+bKsqlW4IZSoZCCjDcDiruAdoY4beBt2EOGXhgQRwQQc/bH1qXfTYH3Z6meim2ZLQtzbk6p7Fwvb/qBOR3Lj4vbDjj6VQAMCCPk8gc63D8I9K/tTrvpu2MbEvrulA45Ur8zHvUr3G5Q2SAeQO+DjD+tpGtektcusqoTSr4qpYqA6wuBkAg5DMCfX6ZAq+MvBUEHkHlgf6hiWB/+g69hh2+/P8AXn/3UBa1a5pTSlNKU0pTSlNKU0pX4fg/4OuD2PGeDx7/AEpVL78f/wDW7N9aW279Rnh/jDofs7Ol15AeTG57du13VgQFkKphIu4E9yq0Z8KwBgJ+KLSFbrTT7t4/+d0K23cfuhmmgJPHAwiqPTjPbIqXXwBZLrpi9tihc2urTxjzDAjlhtpdw5wDksRtznnP6c14BZ3emVto8U6+7z3KOGLd44+D9XHDEheG7jwD9Oo9adoNlGyujBD+vkDC4xkjAJYAnJ8xOT24IqRcUDIinYNpBUL3wWJGTgHAB7EZI4xWPdTfW6ctmcq227dPCY2o81Ns1YqTX7Vu7EgjerViIWCGuliFna0RNJJFPHPwYZoU1va40HpnStJ08dRQPql/dwJcLpkUr20FpblRsE8keJWcnBwSEj5RVIG6sLR9a1q7uo9HEdjYW0skLX8sKXNzcXMRwwgRh4QiVckF13HK5JzzIrbw3zYxlvD5aPbvU/bOQx7181t3J1hi8rcqGCSOwtS4kAozWkST3akU0EUa2kjcv7qxuLHp2ndGLqNtdaS1/wBG63FIDZarbyS3unxTkjEd3BM7SfKyABJnj8oj3b1J79eqaL1GLSRLr5XqLT5Ec3WnzIsN3NEAeYvBfYtyCcxjCKXwAQTkds6Vdc7O2Mfjdly5O/k9sZPH+90zzmSjmfLVcdAZBY2RuF2WRmye2yFrVLMzmc04vZnkl9qGVqHr74e6ZrE2o9SWsMOna9p8yp1fpdnkWjy3KRywa7pyjH90vUffMFOGaTKKDnNF0vPPb/I6ZK097pd9E0ugX07KbmONJGS50u9YYK3do4MZUlsBXRWkClq9Uvwm3yXUf8Q/024uUvNBT3jlN1SqQSAdnbXz+545XH29tsUkg5+G4HPK86rPgJokafEbQlVAwt7lrkMFJP8Ad7WeZT3Ld1B59T2zxVP8Zymm9Ba4VUp4sEFuqsc7WurmOFhuBOQBuJP0HGMmr/yjhVHxwoHH+B/fzr0oAwAD3AAqA9atc0ppSmlKaUppSmlKaUppSqiX5lTbZq9WvTDvEIwOa6b7922X48SLtfc+GyfYG/rGd4dzKf8AlXj5bUPPxRWg+b6XvAuS9pf2zHvnw5opFB59PFYj3ycc1KT8Odx+R1FaZ4WeyuAO/DRTRE/QkogJHp347Vb9zZiLC458jPAbEMdipFIiSCN0jnmEUkwdo2/8YbkL2/U7KoKc92o2dN6Y2salFYibwWZJpI2KM6s8UbSrGUXJIcggkdlBODUpr/UI9O0/5mSMy7HgR1U4I8WUIXyQV8pJ7DOSPXvGGy4Iq23KlKZwb9CxkKeVDAGX9ziuzGxJKeWIawrw2Iw3LGvLECeAAM16xea41qS7Xc1rc21pPYuB5PlHhBVRyRhJvmFK5ysgkB7Crf0kEj0eKDObm1nuY7snAYTiZ2kZwMFfERYmO4YZQu31z3Ks7RTI8biMKGIYEKeOCCTwQO35Dcnt48EgeNYkVZgQEJJOAVBDFj+kAnPmJPA5z2xWVLh9y4XIBcjj9KgsWYeiLjJY4A962nT7i3Ty1uD25MdPurO28Y/HuI0TyJDZu1HIPbFct/quwB+OVmZW9uTjV662uGim023kLx30eh6dDqRR3/MbYJLeG5O4GWS3hZANwyu4KRwKx7pmKN476dIozbPq97PY4xsRD4YeWDCnwxNMrk7TtLA9gSTYH/AB2pYznr6w2YjVGh2Z0p6l7jkDxszxC3UxW0Y5I37lER9zdKozEMWjd1HyTrYX4c7Z7nrtpgUMdnpV5O5MeH8yrbqRJwMkybfTj+M6e/EXcRW3RjREzNNe6vYwbgw2EIXuSCo7HbHk4JxtH7iKvPDngc/PHn/Op5VB2mlKaUppSmlKaUppSmlKaUqst+ZR2wLXTL0v7v7BzjN+b/2uZfuv8QbZxuaEYIHIL/wmX7QQWERPB7SRGH8Tlpv0Hp69A/wNQu4CSAR+dbCRAe37odw5OWA4IzUh/wAO9yI9d163OPztNtZBnPPhXe04wRnCytx7kfcUqeqGRyNHEbixuRhC4rJ0yMLlqsTuKV+JY5Vp5HgkpJNYgJqWeOwCXsPKxn2tA9BWWnXd3ot/Y3DrqdhcH+07Cd1X5iCQyK1zahQGYRxSYePJcshKjzBakr1Re31vY6lbXcA+SubYNYXMSsfDljMcgiuQMlXMke5JF8vmC84JPRMxmNuK8GTobqixWfv1Kc9yHG0zllvMK0QCZPFwrKPeiVRCJ2aGZURYnk7RwL7aWWtE3Om3+i/PaVbXNzFbvdyixNsjysUktbqXCiIjzBBlRu/bk18zalpMIt72y1n5PUpbdHuYLSM3y3D7I1kS4tYiWVwEEYJ83l3YxweWwGKubtgeznMzm5cekoiTHftSbcqX0IDF2jilsWLlU8cHvkiV3PY8bA+bRqt9a9OSpFpNjpwu3i8QXiX51WW1cELgblWCGfGMFAzFc+YCrrpdpc9QRGfUdQ1CaxEjR/ImyGmw3QDeVpkDGaeI9grthTglCe86YmKrUqwV6kEdeGvGsccEKe1FHGoKqiIvAUKBxwAPPJPktrV97LNd3MtxdPJNLK5eSWQlpHbtuc5BJ7AZ4AAA4ArO4ooraFIYYxDDEoVIwMBQB27EnjHJyfoMVZj/AC2e3v3Lr56hd1yISds9H9vYEORyI23fvE2jGHA8e8uziwHPLezyR4HEnvwyWQOrdQX3JEWmwQDIwPz7kuQMcdoV++Dzwain+Jm9B0/p6zSTKy6jd3JUevgWyRqT/kM5x7bueauG/GpkVEGmlKaUppSmlKaUppSmlKaUrwY/MN7YOZ9E+0s+sfcdnddtn5Dv/wCJc1t/de2C3P8A7tmFjA+GLAeDwRoT8Rdus3QKykZNtq9k2MdllSdGOfTHBP074BzW5vgRciLrpYCeLnSb5cc8tE0Eig49ODzng84IBqkPbrQ3EnrWq8NitMjQ2IJ40khmjYN3RSxsCpRxzxyOe4Ar5AIgZaXNxbTxXNtNJDPCVkiljYq8bDByCOcj29eTwanWkcFzAYJo1ljlTbJHINyuBxhsjnGBgqQQQCKg6baWT2bmkn2xBXyO38ldiF7D3BWjuYz3pI0e7jsrIq2jWrrzM1WR7HiMRpC8kqzw7Wj6i07qfTGi16Saw1aztnNtqFoZmhvmRN0dvc2AcwxyTfp3xpGC3nL7yBWMRaJfdO3qT6JHFeabdXMQvLG52Jc2plODc2t4E8QRRA58B2fK43LtrsO6KNu9h7cOImtpk1MD02q3P0bSP+piSRZZWZQ8QrGaR0chSVU/VIqKcc6dura31BH1CK2azZZBMbiEThBsZkaMbTiQyiNQSc7ScAcmr/rcF3PYSpYSzRXalXiME4txIdwVkc5RShiMjFQQxKoQMZDaNvYvetTK0BeuRyYSnbzfCvbSSzLRtLIuNitIvP6p4RFVevO7CesXtRuCJXJuWs33Ss+l3nyUAGpXUGngMtq0UAurdka5a3Yjbal1kmMsSYilQRAedSKtumWnUUV3ameYvpsTag2WuPEkYSM4jjfHmuUiAiKTSEOjOygGPOLlX5abaph2h6qt6MoBubo6abSDkAE/tOCzW4WiB4HcEG5A5HntMn2DakX+Ge1A0fqC9wB4l5Z2wwBysULvnP0LnIHHc96i3+JG5EmtdP2oYnwrG7nbGMAyzxJ6dywhDcDscexq0RqT1RsppSmlKaUppSmlKaUppSmlK8t/xmNk0t7fh2eoI3Ekd9m4vbXUOiY5GRo7uz91YrIJKezkvEsTSrPGwKSQPIr/AEk8as+M1gt/8OupFZCxtrWK+QqxDB7aZTkgA7lCs24dipbtgVsH4WXr2XXnTzLjE91JaPkA4S4gkTIJI2sW2hSMnPGMHNfPhyE8deedGlbuWRh4UhvpJA4ILA8n5APPjz8kDzpiiZsBAARwQ3BGOOckd/TjnP3NegdvcFFTIOApIcEA8jI4+xweMfxzUfZprttohSyhx5R2MrGnWtiZOwhY3S0jBQjH3O6JkcnkHleRrJdLa1tS/wA3YLeKwUKPmJodjE5LB4MsSwO0BwVA55OM/V4s9zHH4N81qQxk4gtrpXUptCvFKAMLkN5TuJ4zzX8sVHdr2J3uZdsmspJrQmnTqLUJdjwrVUWSYdpEf85iWClue4nmo1Ke0uoY1tbBLORATJIt1cXHi4QjBW48sYJweCSSBgZxntsYryGWRp7+S6jY/lxywwJ4eW7h4ycnGRg5IGB7VIFBkdlJ7TwfgnjyfHkfJHyB8/f58jWJzxthgcjJwrAZxlhjH8+2Dzkehq+SNtjbHbYQVHAJwVHbHfP1xn+KvM/l9Nh47bXobu7uhhlTK9Sese/8xk53djFYg2wcbszDtBERxFGMfiF5AJDuS54JI1Pb8PunRWXQMNwobxtQ1G9mmZicN4JS3j2qeVARMEZPOTwc58/vjtfSXfXk0BfdDYabY20KYHk3I08hzk5LPLkng+nYAD3T1vKtM00pTSlNKU0pTSlNKU0pTSlQL6o+ljdbfTr1r6URYypmLe/+me79s47GX782Lp3MrkcTYXEQ2chAQ9OP90SmxsH+XGV5m/kGXVi6m0sa1oGs6V4aStqGm3doiSO0cbSSxERK7oC6r4m0kqM4GOM5F10LUTpOs6XqYkki+Rv7W5eSJQ8qxxTK0hRWIUt4e8DJxzyCBivnH9b/AEpdbei+4L2B6vdNN79NchTleKzY3XtzJ08JYdCUNnH7pgrT7Zv1Z2UyxTVMpIrRMjEIGA1536l0R1JoU8yX+kajbuj7WDWkzRYXuY5o0aKROzK6nbt9SdwqeOl9daFq0Alsr21vIyMr4V1Gs2CcqZIZGWZHxwybAQcjGMGscpem9qZTNUzWCtJz5MOexrEcAf7P1IcnwByRx9vJ8m0GeSB/De1kVto7xPz7c7QOfv3NZJDqljKAVWUHAztjJ8x7glid2PcDnGeMgVt4Ont2sWaxkMYirwS5ylAA+CeO/wDVeB9jz8eD4HnXW128gIEG0jIycj07gAMMr/3YHvxyK+HWbQBm2TuykEBEOCQCcHAbvgDjn2BqVOmvRrf/AFN3BSwHTfZm6uo+atWYKsOL2Bt7LbpkaUlI0Es2KrWaNIOQC09+xWrBmd5pkBJ1V2XT+uazcRxWGl6heMWjwlraySjDknJZAI1yo3HxJFRSuGKrkikvurtLsLOV7y8tLFI4yzS391FCoA5JZXKyMSRgKkbNkjarHy19EH8NfoTuP04+ivoP0r3ptuPae+MNtSbI72wiZGPKyVN1bhy+QzOTSzchZ6zXFjtVEuwVSa1O0k1SKSb2Wlf0J+HuhXHTnSGh6TdwrBd29nuvI1kEoF1PI80uX2jLeYB8EqrZVchdx8/uu9Yg6g6u1zVrWZ5rO5vG+UdoxFm3iRIY8IMkIQm5Cx3EEMwUnYudWs0rEqaUppSmlKaUppSmlKaUppSvwjkEf1/vx/8AvnSuCAwIOcH24P8AWtldxmOyMDVchRp36rc91a7Wgt1zyCp/kWI5YgCCQQFAIJB8HXWYlbKsqlCMbCAykHk5VgQMn0HHvzX2rsh3IzI3oykqR/IIPJ5qHs56ZvTluaZrG4ugfRnOWHJLz5Xpjsu9M5PyXlsYWR3J55JZjyfOqCXRdHmOZtK02UnuZLG2c/1aI1XR6tqsQAi1PUIwOwjvblAPttkGK43F+k30uYWZbGI9OXQzGzowdJaXSnY9eRXB5DBo8GpDc+eeeddadP6FGd0ejaWjcEFbC1BBHYg+F6V2NretPw+r6owwRg6hd4we4x42OfWpmw+2tvbegFXAYPEYOqqhFrYbGUcVAqD4QRUK9dQg+y8dv9tXCO3hh/wo44h6LFGkY+x2BQw9gRgH3q3yyyztvmkklfnzyO8j89/M7E/+hXNAAAAAAD4A8Af2A+w/trvAxwK66/dKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pWliQOQOfI/wCufJ4+/A+331wTj/fb60/39/oD2B+p496w1tepzfG2cluqru7odvezXx+YzNbAS7Gw+5dyibGYW7ksXJPl55MBWjNq/boJcxX7LFkKt7DWP18cgkSOvPjTa9c28ky3WlXbKJZUiNpFPOdkMjxMZSYlAMjIGh8MMjxbpNw/LEu/ofg905rFlpE2hfEfpy3uJ9P02bVI+ptR0fSgLzUrSzvo4dOjj1SYiO3gumgvF1KW1mg1GNbOTYXeWCS+k/X/AA/U6ljudu7nwuVuZnN4CavNgszZxle9t+Gq1+WfMjHw06NeSeaatWiyTVrosVpq1qvBZjaIV2naxDfqhEU0bvJLEB4MrIGgC+IzS+GqIN7FArlXDqysoYEDEOuPhhqHR1xdEarouo2MGn6ZqaSJqdhDfPb6u83ykKae10891cRQxxTXUliJ7Tw545raaeAiU//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAAHAAMBAAAAAAAAAAAAAAQFBgcICQoBAwsC/8QANRAAAQMDAwIDBwQCAQUAAAAAAQIDBAAFEQYSIQcxCBNBCRQVIjJRYQoWI0IkcTM1c4GRof/EAB0BAQAABwEBAAAAAAAAAAAAAAABAgMFBwgJBgT/xAA8EQACAQMDAwEGAwYFAwUAAAABAgMABBEFEiEGMUETBwgUIlFhMnGBI0KRobHwFWLB0eEWM/EkJSY0g//aAAwDAQACEQMRAD8A7+KUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUqltWXG5WuA1MgIQtCJCUzCpaW1oZcBQhSCtDif8AlUkKynIBBBBqlKzImUXcdyjGM8E4J+2O+ftUygE8nHFUzC1A4oh11ualxacZNyccRnb/AFZXlpJ7fQ2knjJ4zVBbsHOVII47EZ75/jjjH1qLLjtk/X7fy/8APipoi6e8BRLs5JAI5lsgcntxt9OcEZA4BHNGmDMDuKjAyCSAcHOcffx/xUArZBwfrzx2/v8AXvXvVd22wG3Fy+eziX21KAPr8jo59MHvnse5ka5iVtpOT3/EBn+I/kMmolWY8KcnwOfH9AOT/vRU9rAIl3EYH1AZJVg+gcx+e2M8VO06lAFDjySrDOMH6cjvz4/KpSrDupz9P9Ppn9ahhdAD5Yk3QZxlWEHA7nO9wE/bgg84HHFQa4DAY3DAPYkeByeTntn+NQII7jGe2eK9bt7MdOfe7icHJO2MMjnOQpaiAOOT2wc/mHqKMAs0h8HcR+Q7Ef0781V27uWGD27/AK/z58/71LXddGOClKJjy0nGXExeee5SNp7dsHj/AFUnxiglFGSMEgfMwyOc9hxjBHceahsJOcfL9Qcgfqfv9qq3TF4m3uGuZJiGM0XlJjKUAlT7aUp3ObUuOABLhUjIOFEEgY5r7IXaRQ5XAIGPv3ycHkeO/wDvUrADtnP3x/Tv/pVTVVqWlKUpSlKUpSlKV6ZCA4w8hSQsKaWNqgCDlJwCDx3x39apyLvQgd/6/bPGM0q1Sm0rkhJjs+7mOc/xp3B1LmPqHByk8+vy988izl5BNt2jZ6OQWxw4YZG3GTkE5IJwSMjmq27PbHY+fOM+QOP4fyqLRboq1ctpSeCSlJSAMgkZBHIGT39PWqoznjv+eKl38Htu8DnH996/arFDWTuCwr/uODOfvhwZwO329apSwRyMC6gspByCcnHbJ7/bx2FQ9Rh2wD9cf75Ffv4JF7F2XnAAxJkgYAAwB5h4HYY4xipiiYA5wMYG5sDv2AwB/wCe+an3g8k8nk8efPYY/hxUG9Z46MfzSTg5OH5GRxwTleTwSM5wB6YzUhiU4JBGDxh2+3f+/rmnqFezLz3yp/T6/WoJcCOMhQcVySNzz6s5/HmYI9SMJOKrE57knx9Dj7Y7fpU1SWbDitpXtjt5OQF7ick8JzuUc/MrHOcZxnJyaIhjQuYkVXcHBJ53EDuTgDJA/CcnzzTJAx+79v4+B9vr9qvda2BGtsBgJSnyocdBCU7RuDSd2E+mVFRx9yavUYwij6KOO+OORnzg5qgTkk9s1H1PUKUpSlKUpSlKUpXggEEHsRz/AK9c/j70pVjV6r0zHkyo7uorM05bZcy3S/NucFryZcJ9TMxh7zXUpbfjujy5LaylbLg2rSlXA87Jf6cJJj8ZbD0pJIJc3ESmKRG+eKTcwIZSqkngc8Hvj7fhrgopW3mzIgdAIZPnjPaVcKQyYye+eMdyKmkHVGnJjwYiX+ySnlcpajXm1yHSADuwyzLW6rGRu2oO0cmpU1LT3YKmoWBc5Kp8ZbbiFwSQokJIPjGSTkY4qmbO5UFngmVQM7mhmGTzwMxgc8YOcHnng1O3pzSCkJW2pav6lQCinBIISOeQMgkAY59RVyUbiATHyM7iy4YEZBB7HPAAGSewGeKpKj5BZTjnnuOMg/wPB44IqSStX2uAT7/I93SnncpCyADwlPyoUVknsEgknHBqjJJDCziSWPcm0MoyQpcgDnBHc888c/lVYW8kgAjQs5wdoAHHP7xwOfGcA1L52s4MV2M03bdQ3D31Ki27bbNJlsoSElW551JQGEEDCC7gqUpKACTmqMs4iaNRHPMZGKqIYmcLjy54VFPgk4PPPFRW1dyVZ4YivH7SRVJ4wQPqQRz9zjvwY9UxhbKXVFLBW3uLT6ktuJ4ztWhSyUrA4UknCVcehqqWwoPAOMlS6ZXB5BOcEgfTjx3qUghio+b5iowQc4JGR9sggfx7VIw61NuMOG26247KlMtNtoUlwqysLXgBW0hLaVOLA4CUqV2BNEYMygMmSQNu9Sck4HbgZ8AnOPGalYMFJKMB2JIwBn9T/fmr9gADAGAM4A7AZ/8AH/r0q7p+EZ78/wBTVCvNTUpSlKUpSlKUpSleDyCPuDSlcwPi0kOWfxa9cdMKU+y07qlq8oaTJfbZKtRWS2X1Tgjg7El/4j5q1IH8pXvVuJzXLL3gry90r2kdYWsd3dW0c1/HdiOKeXYy3lnbSiTAdVXeThlCgKwbnBArbz2f2SXXQ2gXpSOV/RmtvmQbi8N1OoG/BbCKoVATjAxzjFYt68ssqG3CuUCTPi+WsBx1ma+2VJdSAClxt1pxGxY2kHAWCdxOBWuVxrGooMxXt2kiK22SO5lUqDwSoRxluPBzzwcgGsoaLHbu7wTRROsqqpSSFGCNznhlIO4cYxztwTjvNbd4mPEZ0is1q/ZPUie3YYz6pAs98aa1FbwtIWXGSxdWZZbYkJIWtDMhhQdBcSfM2qT7bpL26+0npkR2mndS3UlrBIpSy1DZf25G3Do4uVd9rAnIR0JPzhg53VNdezDoXX5J/wDEtGge8kUILi132joncPmHCtIGAXO0svGDjiqz0x7RnxH3C4tuvs9OH5rgDbsr9kxWn5IC0rQXViaCFAfJ/D5SQhZIQF4WnI03vW+1S3+YydNs2zktoUAJIIKlvSmQtgDJBJGcee9ovvYF0NFCRCdbWNVDop1KR48sPnwrAYy2CoJGOQNoq70vxm+Li4szHIuodJRUTGlBDH7Utnlxklot/wCIpze8hWcrBdcew42CAEKWhVKD3qPa1c+t6mqaRGJ1JAj0m1VIhj5TEp3bCBksSWJG3ngZ82vsi6At3jD2WpyCKRWYi/nUyHBBDiNskbjkZwM7sEEmrO23r94m3blcfiPVzWNvuTjan0Rok8xLStTZaUDEhRUtwmQChGUMspTt3pcSUuOZslp7Z/afcXs103Vt67SgbI0ZEgye2yMLheQeBkAc4JyK+y+6G6Jt4IRBoFk0ZkUuzoXnT5hvV5SxJGMtnIwWOOcCsw/Z39Y+q/U/xT2Kza51lfdVNWbSuuLpJZu0tT0aMwmGzDafjRgENtuqnz4jfmFBU00lDLZSk4rYn3eOu+serfaBFaa9rV3qUFrpmpzSwziP04wY4lj2hUUZWVlKsRuwSKxr7VOmNC0Tpb4vTNPtrNri7sYlaJDuY7p3cBiTgFU5Hc4Hiuhyt9BnHPB/5rWqlRpSlKUpSlKUpSlKUpXMZ7SO3L0/42NQXTaW2tRaT0JdsqBSl33eyosjq9xwFKCbMhPPYN4AJTiuZHvW2Hp+0m8nVDi70XSZy4BJZ1ga2IPcklYVcnjBcr3QityPYrIl17Po4CQZLbVdQj4ySodlmTHkDMuMgnIwc4INY2a91DbndNltpbSitlOwbs/zDatXOVFI25xtyd31A8Y1BbeZdmGxuwQAeRzjjvzjJ78YI+lZP0y0k+OVSCQu3JUEHarMQefvwT5PAOM5tFdH2rho5xYSFGOoq+5I2HHbBI+UHnjk/nNoIZb1BtYBmG4jI2rjax5znkEcZP0r2ViFTUF3Z+cFkw4Vl+YlgRnk8kABSMAAeKsuL9pWLGcmT79bNPXCMjzCzKmtR1utIS6tT6GQTILSW47y3Hw0I7QZdU44kNr23610XXdTlEWm6Zf6kJJGQC1tWmjzuVSskx2QrtEkZKiQO2+JVVt4q/3V1baX8l5PF8KzfMbh19QblLISCTu3YIU4O7kZ4Oa+6XdYmtWKlwdOXxN1EFLZcMiPJYaksFyQyiXbn5TaDOgqfiSI4kxwpkvR3EAnKSqfXOleoOmFtX1SA2ovt5iSOVLho9ixyNFcGBpFikEU0cuGaN2jkx6IClm81dy6HqiTyW3ps0JX5kzGyCQhFOGRAytIPS43YkBQgEgmtNQaokhPmB5mNMawtlSFqUA6n5sKynCcnKTgKBSrCtoxmbTJpl2KFfcMEEDhW4GMnPnnbn+RJFifT7dxjAdWU7wNu7achuB3JGSO3NbMfZCMM6n8QfUnWCGGkPWLpQm1Sw3hQRJ1Lqi2PBZIJCQ8nTbpbVtBIDqAVYWTvf7o9k1x1R1JqjgL8PokMW3jd6t1eIef/wAoyc8MxyPwqQNfPbwGsNB0WwV3Mc+sXEiB9xJitbUqMk8kB5gOSQCOMbsHoorfqtXKUpSlKUpSlKUpSlKUpXNZ7Zu3TIvXbp7doqywLl0wgNLWlIILtq1LqNCnCcElflz2EfhDaQewI5/e9vaIOp9EumDF5+nwCQGCN6F5KDlsfN/3VBB84H3O2nu7zI+javbydo9VZlTOM+pbwDkAnGfSOCSBgdhtIGp+HEud7i+XOurikIThtCnQ3gDOPlxtI+kgEEHntxnRq7mFvICEBLNnGMHGT2HBz3IP1/I1syJ4YGxFbBs4JK5bOcjaXA+UDvjwD5yagLhqK46bt8m1KY81EwKaYf2oeQXEx2Y7PmLUoLUH1CQ88jeFNOLRlPlKcx9QewvdrsygLb7pI13JzvZikXDBpAQhXcikAPtYtsBr2ukXF3dieFo1KkKqv8r4LLgkFuFI9QkgFW+Q5AJIwAvGn9U9QBdNeX/WemzCVIvsDROg7atjp/fbzpZq4f4jKuoy1zZLNzuMhoMybHNs8uzXSDcTbpspiQtqbD2d0PW9C6WW36T6e0XVkla202613X5YbjqKwsddubFHdz06qwI1rbqQ63Fvcw3SS2wuI0dN/reB17SOodUM2t6he272CzXUVhp1u0WmzzWNteFEL6iVYtcM4clGjaOSK5W3MiSKSk36YW+xXzqbD1X0o1DB0nA0UvUEzqBpyz2lL37q/d8VyzaU0xdrq9DtQtl36eM6WQZIjx7lNdddCbpd5kt12Wq3dd3k+ndI3Wk9aQ3eq3mvy6fF09qE8/onSZ+npEvNQ1W0hjubx54dcub/AHRr61tbNEZCltbwr6dOmbCO+1qG60GVLW0003Q160e3ilkvP8QUWtjZzzusQt7nSlgUsfSmlLAiSVpGZhk/O17PUtxu4qS84d6fPWMLXlW1K1/Yng8Dk4yeKwFZW4Uu0AwGVkCsc7h9Y/lCjIICsSCMY4xWU7nRYeGhQqoRThdvLjllOSCQTgEYPB7g5rf97CO1idbPEfrUDf71denelg73/wClQL/elthRJOAL82ojP9kk54NdCPdHsPS0vqy/2tiS702zDMoBJiglnZQwznBmyw7DIIyD8umvvMyGLU+lbDOfTsNQuiOxUy3UcI3c8j9gQp5Gd2D3roNrcWtYKUpSlKUpSlKUpSlKUpXOR7dp9zTt88P1+aJS1c9PdRbQ+rIALlsuekZ0RIJJJJRPmq29gE4H1GtMPexsGkbpC82B1FvqtmzY2nAa0mRRg4LFt7HOPlBGeOdqPdoSOd+qbVs7lk0u7XbgvuYXEDHBwAhKRAsM4Zuw3E1zvNdT5cdzHvKyEkqAKzlI55GAeOArBGPzkkVo7caQJVYfLkjPzbB85zlhycE9uQQBnHPNbpW+lL6aYViTzuYAAnjk4zjgY89z4INTC79Z7PEtzCbuZspU19MKHDt1vl3e4zJBacdWiJboDT0p8xWGnZslaEBMaIw9JeW202pYt2n9FajfXE8dl8NEsML3VxPeXcFlZW8QbCyS3M7KiB7ho4lXdukkcxqORV1cQaYkMrRzyPNKsEUdnby3N1PIRvaKCKEF2ZIUd3YhY440LOwFaxJ3WDrnc+omt7dYtN2bTGkV3q7X3RY1VGvNlmWFFn1JarTqBwSnLf8A5F1m3uRbrhJtyi9ZrZcZHmxYq0oMetx9K6Y6J07QdAvrzU7/AFXWzp+nafrU+k3NvKmoNLptzeWDyRxTcwWlkZ4rW64eeCOBJ5GZjjCJ1brbVNc1fT4dJ0zStMe9u7zSRq1vNC9lDBdw2uoqZDBJILi5uXWeSFgqwy+pPbAxbS1zPCh1C149Lt9w6miNYo0Gx6r0/o6DbNPzbOxfLPP1UxclTpc4w40G9ItItjgsQdfl3ZuHcbjcC3CRJmCZ4z21aXop029i6aMuqXU2p6NqXUE95qUN8+l3sWl/AxRQ2Ykkks31FJVhv/wwCdUjJUJGVvPsz0/X7yWO76ghisDHbarBosEGmy2SanZG9EvxBmaJIJ4YFTFkw3XMkRaQqC5Iyr1jrK3qAjwHUvOrUdziV7koBIyTkZ3AE7R3zye2BgTQ9MnIzcR+ksYGPUwDz+HGTjnkYOM9qy1JZMgLONoXjLFd5GOCmFxk8D88/nXWJ7BSwqheE3WmpFglWres1+eDquVON2HTen7ClO4cFLbkRwAj5Qor43Ek9HvdpsBZ9C3UwG0XuuXUgI/fWG3hhwckkbWBGOO351zx95e6MvtCgs84Gn6HZoV/zTy3ExOPG4vkjkDHFbyK2LrXmlKUpSlKUpSlKUpSlKVzzfqEbWB0f8P+oko+aJ1F1VYluY5Sm66RduiUbsj6zYlnHbCCTkgY1i95y0Wbp7py5OT8Pq1wnAOAJLQyfNjwfRHBwCceOK2f91242dUdQW3H7fR7eRQQDloL6MefGJj9vr9+PDWesbvYBbl2y2/E1Srg9GnKUJK0wIiYUiQmWpERC3FJS+200UqCW1he0vMrUhdam9OdP6brMuoRahfmyNvaJPaKj20JuJUnCvAGuTtZ3iJkUKScRNuUgg1vLq2oXmmQWEtnYrdxzzNb3JaOZxbx7Nwm224LYDALtITe8igOoyaps60VdT8Vl3wWdekbmDAkxrXIuVlva7q1Jsrk5+ItJvDVvWy/KiutRLi2u3qWuQuapTCH6v3/AEutio0u2sU1ZOobKSS+iuNShtNR0xLCWO7ht7WeDfZ/Eb/TuRvtiJj6cIxliZYdR+KY3s92dLbQrxI7aaGzku7DUjfQyQPLJA6C6Nv6YaGQiYCGbLephdwp+5QdCXRxm6XfX8yfLul0vjwl2p5aNNty5yo7F3jwoCm5ca1ANvQGUzJct6YlxtEhUlySt10XGwvurbBbmy0vpWxs7ewsNOjWC92Pq9xbQ+u1mZrxJ4jduJVvGeFI41CIoCLEyrU0vT/Sl00N9qHVF5PcXl1qf/qLRimmxz3Udul8sNq8dwlpuWSKFZFkuHKBWLLK8gEM7qO0x2tPxFdQlMR7PClPadctlkUJS0RGpNlPxt6W1cIsq7sRVyYTcNuNblSQuVJchuvKDiYPpWqSS65MnR9t6+p3EKa4l7qv7JnleDUN+mRpLaumnySLFcSzSzTiF8w7yu8GWS40yFNItF6mkSLTrCUaO9lpmx1jjR7Jk1F5Y7oT3kaerFHHFFCW/wC5sEmNtxrDcJU5i3rfdlvOOtNEvTI8aLLf8w5S+/EiBLEdx5BStTDaGw2CEqabWFIHiNStVivLmNBbKiNtWKymluLWEr+OGGadjK6xSbhvfhj86FkZWN9hy9sjyNcN60e/1LuKOCd1YAJNLFAAkbSLh9ilmT8MgVwVHez7GHS5077P/pDIUgoOpbrr7VoOB/Km+atuCmnMkZIDTCUIIJwhISCUgVvz7DLMWfs10ELkC5a+vOQSGNzdyNuBI47YGPGQOOBzA9vV2bz2pdSbju+DktLFDjGEtrOJBkc8ks7eBljgdsbVqy/WH6UpSlKUpSlKUpSlKUpWjj2+lkNw8Helbzs3ft3rNpp4qIyEfF7HqCyjkDgqM3aORnP4rAPvGW3rdC28oGDb63ZNv8oJY5omYE8A7WOR3ZcqAcmtgvdqufS9oklsTxeaDqKEHhSIpLaYZPHYpkDsPxHAXNcSt1ePmLO4D5iecDA4TwruOB2/OQeTWkEUSkDOGw+QGXcMn7EEZP5jPI7V0htyTHGPB4yMjg8g8HkZ5HOM4PiqadnyEE/zLCR91HPcEevpwOSAABzgcffHbggbtxznkjgYzjHHHjsfA8DFXEMSQoyMgjuSeQR9eR3wO3J8kmpeu5vK+tWcKIBJzwcKPBzhKlpCjgDKkhf1AGq4gUEsGfJABJPgf1IHA8YAGO5qoBtUKFUKpyuUGPmcO3jHOCRgDkk85490WatoKDJLQcWtxzyz5aVuOkrcdXj61uLUVqUrlSjkkncajcKZSjPI7skaxqWx8scahI4xwfkVcKFOcAAeKkRgpYKqxgyvMwAA3ySOXdick5Z8s2PJJxmqpsbyjIQtRBS2QvOQfpJWsqzxjCSfzn718DApkYUHGQSuOfH1OOAOSdo4GAK+C9kJDEDO8EYyeNzclf8AMMnvgMeW5JNfRj9nPpd3Rvgd8L+nXklLkPpDpiQ4FDCvMurb93cWQQOXDOCicfMTn810e9m9o1j0L0tbOMNHo1qzDxmUGU85Ofxj9O3euSPtLvBf9fdXXYbcJNe1BVbyUhmMKZHg7YxnHGcgcAVmpXt68PSlKUpSlKUpSlKUpSlK1Xe2c0TJ1n7P7q+/GeYZOiJ+ieoDvnIWouQ9NapgLnMsbEqKXn4spbSVLHlgFW8gHNYo9tmntf8As61zaf8A6RtNQxjJItrhCyj/ADFWIU8YOCTjist+w7UE0/2mdOl1yL1rvTs5A2fGWsqB+cZCsASuRn9MVwKX8qQ+6hW35VqHHc4PIz3ySCec4IGQOQNBYlwdozgtnB45wBnufpnv9q6iWbh44gCMgAgEEYRRtBPcEnBGeME5IzjNFynCQfuecEnjkYzye/4Oe59auManABBA55AH1J7jjn/irnG0TKzOSDkbEHcIVDDJOdxGdrNkeT34qV+ZknnAAyBj077c4+4V83c9ufX6QjYGBngeRUrFSxKsQASNrY78cjBIA4PGfPFRrDhO31PfHbIyMD0z3VyPQ49apSA488ZzweP4c/61J6rDOAuDx2zkc4POcd+cYq5eiLVJvl3tdjiFCJV5uEOzR1KBKUSrvKatsdaiEqWUtvS21LCUrOwEhKiAK+FLZru4gtkIElxJFAhYZUNNII1LAYLAFvwgjNWXWbuKx068u5XKpaWtxdOF/GUgieQ7fGSEIBOOa+nX0n0i5oDpj0+0K84w69ovROlNJvOxdwjOyNOWC32iS8xuQ2otPSYbzralNoUpKwpSUklI6daVZnT9M0+wJDGysrS0JXsTb28cTEcngsjEfQHHiuPOpXn+Iajf3+GU3t7d3RDHLA3FxJLg/o48nPfPOBcGrhXxUpSlKUpSlKUpSlKUpSsOfaC6Jn9RPBX4mtH2sxRPu3RzWa45mviLGBtMD466p2QpKkNBEe1vKQpYCfMCE7klQNeS67sX1LpDqOyj2iSfSLwKXfauUT1QCTwN3p4BPkAZ5r13QWoR6X1r0vfSlgkGt2G4qMnEk6xHAyB+/wA89s9+1fOGvrcl9SpSUFaHkpkNrSDtKXkIcbB28HKVgEc85GQRgc51hKOCR+FsMSSACCVJBHjIyDz3x966y2M8QjRQ6uV+TKjIODuAxnj8XBHjGciqJkxpBClls+udySAUg45zzx34GfTg19aNGoG5lwM8bsnnOMc9snPJyB3z5ugk53AA5z3IGDyOwO7g/Vcec45MB7u+pSUBtXc7cBRURgnB5Axgk+mMemKqCeLtuxjip1AcksQuQT34ySDjODx/fNRzUR4BJDa8pwc4OBzkfcnnH+zjiqZdTnB75xgfXt9v54+/moOY1AIdDjgnfwDwACSO5Occcmsu/BboG89SfE90B0Ja4rciXqTq1oeJsfdbjsJYbv0OZLdW68pCAhqLEefUlO51QbKWm1uFKTfej9Im1XqjQbGGESPNqtplmbCokUgmcu3ZQEicjOSxG36A439pus2+k9F9UXk0hQQaHebduGYyyq1uqDa2QXkmjXPAB78Yr6WrH0E+inHFj/S1qWP/AIRXRxe3bHLceR8xxkeCRgkHnJ5Jrk6pyORggkH8+/B8gZxnjt2Fe6o1GlKUpSlKUpSlKUpSlKVK71ZrXqG1XKx3uBFulnvFunWm622cyiRCuFtucV2FPgzGFgpeiy4rzseQ0r5XGnFoUOcinNEk8UkMqrJFKjRyxuAySI6lWRgf3WBIPnBI81PHJJDJHNC7RTQyJLDKh2vHLGweN0YcqyOoZSOQwDDkCtEvWj9Pt4UdfXiVeemGsOo3RAynXH1WKyPW3V+lopUolEa127UbZn2yC2nahERu5SA2gEIWAQE4N1z2BdKalLLPpl1qGiPMzO8MLLd2as5JYRw3GZkUk52iVgpwFUAYrYXpz3k+ttHijt9TttO1+OKNY0muUe0vpAqhVMs8H7N3UKFDGJWYfM7FmJrES/fpwb+gqTpTxPWJ1o52DVPTC5OukDJT5jlo1Sw2FZOSoMqTn+hHfH157s948jGz6vjEZOQt1pknGMHlop1GMjj5RxgVkOz97FEU/FdGuGO0n4fVwMHgNgSWrEcZwAxGe/HFUI7+nG6zhZDHiH6PYHAeXojWaFEZwSWRdVJC8eiVkY+XOKtre7X1GzN/8s0zaeRiyugB9ODOCP7/ACq6D3tdHAA/6R1bdnB/9wtWH3wxtwG57EKM9hjvVQ2X9N5rl+Q2nVHik0lEglSfORpfpdfHJoRkEhiRddUiOFd8KXFV6E9iKu9n7t18pX4zq2AqR8wttMlZsDH4WmuGGM5JBHzZ+lW++97GJlZbHpCcE9he6pGy5AOM+jaqe/IGTt7DOOdl/g19il4avCV1DsXV+TqPW/V/qdpSSuZpa+awct9osmnrg4ytn4pbtMWFDcV+5sNPPNw5tzlSlRfMU4llT+x1GWOjvY9050lfQar697quqWqkW9xdOIre3d1KvJDaQ4j3kHCtIZNg/DhuRhbrn249Wdb2NxpLQWejaTd7VurSyUyS3caOsix3F3KTI0fqKHZUWL1GVfUDBEA3JgADAGBWWqwzXmlKUpSlKUpSlKUpSlKUpSlKUpSlKVDA+g/gKUqNKUpSlKUpSlKw8d8TmobDrHWmmNU9J9aKYtWpnbZpe76Y09f7vZrlZCqNFg3a5XlUH3dJmSpSH5DVtivrtUKLdnH2pJtqFTvNf4/LFdXNvcafdFUuNkE1vBPLC0JMapJJIUChmZwWCDEarJuyyYfPEfse0nVNA6d1nQ+uenlkvNJjudcsNd1fSdN1C11TZdXFzZWOnfE+t6MENo0FvPfzwjUby606KBovjSbe4HSbxD6Y6pxLSI1n1NZ7vPul7sUy3TLHcnotrvOnWG13SPNvDMY2+LHcf95ZtrkxyO9MXFcQpll4pZr7dO1mHUFjxDcwSs8sTxyQSFUlhVDIDMF9PYGYojkqJCCAAcCvL9b+yvWei7m/9TUdF1LTraz03U7a8t9Tso7m807V3f4CaHTZJ/jJZvQ9Ce8W2S4htVuIj6zo2+v/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAIBBQEBAQAAAAAAAAAAAAcICQEEBQYKAwIL/8QANxAAAQQBAwMDAgQDBwUAAAAAAQIDBAUGAAcRCBIhExQxFSIJQVFxI2GRFiQyUlSBsSUzQ2Kj/8QAHQEBAAIBBQEAAAAAAAAAAAAAAAQGBQECAwcICf/EADoRAAEDAwMCBAUBBgUFAQAAAAECAxEABCEFEjEGQRMiUWEHFDJxgZEIFSMzocEWQlLR8FRiY3Kx8f/aAAwDAQACEQMRAD8A9/GlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppStCQByf+CT/AEHJOlKjux3d2vqMvTgFrn+J1ubLisTUYtPvIES7XEkpWuO+iA+82+pDzaFOo4TyWQXuA2O7WKd1zR2L5OmP6lZs6gtsOps3X0NvltQJSvYsgwQDE8xU5Gmai5ai9bsbpy0LhaFy2w4tnxE/UjelJEjv6d66jV9TXT9c5HMxGt3fwORkkCdJrZFSq/hx5JnQ1JRLjxjJW0zOVHUtKXVwnZDaCfK/B1j2eselbi8d09nX9Lcu2HVsusi7aBS62QFthSiG1qScK2LVBqY703r7DDV07o2pN27zaHWnVWj21TTg3NrwklIWMp3hJI7V1XKOsvpow92S1dbrUnEKO7KmSayHd3dbDYjyBGkrlW1NWTquOuK4oGQw7MRIaa5eLXpju1D1Dr3pTTm1uXGs22xpW1xxjfctNmYO95pCmkAHkqWIj0zUm16R6kvCgMaRdlThCW0LSlpxaiCoBLbqkOKKgCRCDPaoz3a/EP6ctra+slxb203HfuYkabXsbd1/1uH6E1KVxFTbt96FTwluIUn1YxlPT4pIEqGwCFarvUvxd6S6btWbkv3Ws/MNtutNaMwLsbHQPDU5cb0W7e9RiC4opAUVBKRNZnRPhx1LrTzjXgMaYlpa23V6q6q1KVNzvAY2LuVhIB8yWtpMJCpIqGsZ/Fw6bJ10mjzip3E20fLqEKn3tBFuqhhtzj03Zb2MT7SyZSpKgsFupkILZDneUfcabY/tKfD56/8A3dq41bp24KkpCtRtWnLfzjclS37R+4S2I5Kk7e0zVhvPgt1g1bfN6d+7dYb2rUUWNw4l6G/qARdNMgqM4SFFRx5Rwb0t9RGxDtTi16N4dt01GbyocHErB7MKOPGyGdPe9tDhVS35rZlTJEoGM3ESBIMgFgth0duu4m+r+lnW7J1HUWiLRqRSmxUjU7Qi6Uv6Us/xQVqPG2Ad2CAcV10entfS5dNHRdV8SxQ45eI+QuSq2Q0JdW9taIQlAG5Sj5QnzTtzUyAg8/Pj9QR/yNWOaw9a6UppSmlKaUppSmlKaUqKN6MFyTcTArXGsUzWywO7kKafh3da36inFsoeCKyWEux3kV9g840iU9GfbkMhtDrff2FtcO/ZeftH27dwtPltfhKlQBc2nYlZSQoIKtoUoGQJPbMuxfatrpl55hNw0lQ3tqAI2zlQBwSkSQDyQAcZHiT3j3fyuTlmXx8ytXjkeKWUqptmf7VWD0i0m09m/VTYDhuE2Bs40Z5h4MMy3C0YBUWmksuqaPz46j62Zf1XVDq9u63qFgt62eI1JxLq1MLW043bqdC4kp3bVGABXuLpnpctWGmfu9TTtnfNtXTSXbFG1sOspcS6UIUiJCgAUEK4kRAHWajf6uQmATX2WOQq+OW0RsMg4DAckOqZb9R2S8jGI65Kn3UGTI9wp1anlKUktpS2E1V34kaI+u2+YZ1a3atv5bdkNNTtmAVKUbSVqWcrKgVKMckk1aldF36w+oOaddO3CgXXL9zU3DAO5IQg3gCdv0jZhKYCSCDXF5rv+xm8FVBZXe4sui97Hmv1cmPjBZkvREJEZySzXRYCJJbcBdDbzi2VucOqZD7aHRpq/WnTerWiLO5V1E7aF0uuNqetUB4qQAEupZZbSoJ2nb/DAMyZJM7tO6M1HT7hd0zb6Gm4UyGkOI+aBaAJ3KaXcLeUgrTAVmcAJUEgCt7S9XTWBYe5h9NS5c7TGU++WJTlQVBbxT6rTDbyZaorCz2rXHYfajrc8lvjuCp+mdddKW1g1pjFvq7dukkDe4y6cQNpC2VhCYP0gxG7GIHBddA6vfXvz7zmml4pCTtW4gAAcgNltSlR/qknB7mdnC6o63LZK2TU5XXqfbbYU3GhYvEILaA0kpmOQJKu5CfuQVoKPtSnsLfA1G1TqnpBbjrjqNWUlwJBS03pY3gpCSFOqslLlODAkAAAckGSz0RrFrBQrSyhMmXnL+RJBgIbeQCAqMyFZnOBUw45b45eviVZ1lvdypq1Bz6/e0D7a2glPd6kdmmYabUnwGno7bDzIbCWlpI7k4/TNZ6MS+3dJ03Vr19ToSyq6vLQADdCB4bdmAnbMkpAJHumRjtU0/qNpldu1caZbNJQEq+VtbwqVuGSlxdwFLBBgla1bsyCIFevTpDp89i7QY1f5/kMy2sMrpKW5hVUubIs/oNe/DCojCbGS867KdmRVx5L3HDbZKEIW4QpQ+jvRb15ddO6TeXiCyq7smX27dTinnGWXBLIW6cuKU3Ciok4UAMV4V6oTaNa3qFtZpTstbp9hx1DfgpefbWUvKS0AAlKXAUADkJk5q0+rXVfppSmlKaUppSmlKaUr8Of4Cf8vC/37CFcf78ca2qEjHYpPr9KgSPyBFaH9PxNeBf8RmPXYX1a7+YuzHWgsbq5QtPLSG2/aTZ4s2HUnuP/AHvdrJB+OD9xHg/MP4v6cbHrjqq3GQjU7pxtMCdlwvxweBH14IyQBMmvov8ACZ5zUejemrkrC9mmsNKzkqaSplSUzAJSpEK7CO2DVQlezTXh5DrKg433lCFoJPPzylHKweOCf6/HjXRtzaupJdgkQVRBkbTBBA7gzMEn2FdtIhS9sGUqAOIyQDifbnj0mait33BsTIaW4hsKI8qHarkkDgH9CPBA8cH5A1kwpPgpQU+YgTIIx37DJkYMYH4rJrR4zcKJBwoRySngR7845I5ia5Nx73LZLykq8HvV/iPKefCgR455Pnnk+NcSEpR9Ig4zmccGeZnP3k9zUZtvarMjKZkDkKAxjP5n2jmt1jzxiSXpKGi2BwA4R2+OSB2ngjx8DgjtA/XUW986WwpW9QUZB7CCUkjBweDMeuanlAWhSe5xiJjHr/fH9ZtJtVZzJVxVNdy1pdebbJCeS96zwSWwe3n7wvjuT5V8D551mtAtnFv2p8ylKUCABBWVOoSnnEKny8yYA71T9et2Wra5UchCDvUqPL4aFElRGBxKuwyRzn+gnhFKccw7FcfKQn6FjdDTBIAAAq6mJBATwSO0ehwOPHjxyPOvsBo9v8ppenWnHylhY22f/DaMt+3dJHA4/NfK+9fN1e3l0TJubu5uPX+c+4sc5iDI9jPeK7RrJVGppSmlKaUppSmlKaUoRyCD8HwdKV40PxvtoEQOtKxuqevjw0ZzttiGWzEsx/TRMs2V2mPTJaw0UJXKmKoFrefKVKcfaUtZ71KUrwP+0lpRY63FxbobSL/SbO4WkJgOOoU+w44sjzb1BpMmf8oJySa9yfs5amXujHbR5S1fI6vdtNy5lLbiWX0IG4GEhTi1JA4Co42gYkIWLy4kJAkMJdQ24EMpJdSXGyoJW39qFfw+4+CTykngH8tecj41u0EBpt1CVAmNwJCleZJyQZIJnP6V6LTClkJVClgqKgoACMSoEE8DgR2kSa3MzEUKc9ZEDsbcSXUdj7hSykEJIWCwFDhYUnu47SfA8+TBft3t+/wIQqFbw4valMQR5mgACruVY7YkCQ1coSgJ8YEoJSYQFK3ElWfNGOCNuK4t/HksKWr2Y9IhKnOX0qAQT4PPpcBJ5AKuO7yQfjnUN4BG5QSsoQmSW1pIPYzKCcGAYIAmRziWyA4QCsBZyDsUArI2gndg5nAAMkek/EMNxAECCVAq48yfAHcAeR6XaeB4HPngc8E60t1JJRtttxJEKW5IIUfpwJ44yMmZ4nmUhIEquA2Y+kJMkEkAgE8mD+B6Zq8HQjQws56rdg8JsKmJLgXG5eNs2EGShx9mRX1z6rmWw+hag04w9FrHkuoUzwpkrBHHx3f8LNHb1TrTpq0ftGlW51W1K21J8VJat1eOoLC5BSQ0ZPciDgmepfipfq07obqi8buFhxOl3aWnICVeI+BboKSnO+XIGR3iYx7zh8fy/Lj44/L+g19MR+n29O1fNGtdKU0pTSlNKU0pTSlNKU0pWBn8W7Y2fn25u1+XQK56UlGBWVDJfZaUtINXkL9i006sJV2ji8dUnkp8lRHjnXkj9pDRH7vUNC1C3ZUofu+6tXFpStQJRdeIlJ2iBAVMniSQfMa9Pfs/a4xY2eu2DzgbKtQtLhvcRw5bqbXtBIyVNiY7ECJ5w4TenaehAS7Vuodblk9qmldxbBKkhJIIP8QJ5TwU8/dxyTryS9bPNlaFtQSraUqPBgEEcgZ4+kyJr1AjW2d4Lb6TLQB27gEmIntJgye09546La7LT4K5UgxkJDgUynuZbcWtCENJS085wHOxZ9dS2wT2rcQVJCW9cyyHWwl8LCAG0LA8Qggg7kpQCEYG3gARgAEQrYzqG1YUypPKlpVCSolASkb1QVgK83IV5jEkGRVzeGJYbUUka+m41aW2PptIsXJZ8FbSXMYp5SHEyMikw1JW7OhwpIY9xHj8NsRyp0OAJUk5Tpjpa26gubzTWbtm1ubizeNk2807svrhJQRZsOkpQyp9tKlJcXIKwrAO2eDWerDpFuxeutOvMNPtoecacaCrVs7j8w4iAp0tOES02ICJJcxtHwi483e18K0qV++rbGExOgTIQEliRHld77Kw6wHEOIU240lt5KgntPcR9igYzfTSra4uLW4QWV2y/ly0lspU06mEKSskK3mQFSf8pxAzU/8AxYw7asXCHA746Uub1qGxSHCSFIIUBt2Kjb9M99wIOUf8KLZq0l9Zm1+QyayY3CxhjJsjXIkMOJaaXDxiygsqClgDla7HhsAk/d4+Tx3/APBHQnx1hp9ypkhq2RcvqWUkgeHbltJkgCSpU4ggkSDXRvxt6wYuej73T2XQXbl61ZLQUmdvzSFqMJwobEHsfUkBOfYikcJSP0AH9Br27Xi6tdKU0pTSlNKU0pTSlNKU0pUIbwUsGycxx2bGakISuxipDrQcCfWQy8oDuBSkqDH7kA/oNVLqqzZumrYPsNvIC1phxIUBuTkQeAYTwBnv6WDp+7ftXrgsOraUUoXLZKSQiQSSn/Tu4J78HNQPY7Q4FNbWt/G6tR+5XIiNpUVfPcCjtUFdw+R5/TnwNdZv9E9LXKpd0ezlSgoqDYHmwATAkx7z78YvDPV2tsQE6lcxx9U4P3Iz+D2rE7kHTzL6sN8t0qGNe3W2vT7s/fLwR1vb6RGpMl3KziHFhvZAuTlbCHrSsraSS+9DDVTIhdgYjGSmeq0dbg48/D3pXx1xpduAk7CUpkhW1JIhQCDg5JB9sismOuuoGG0bdQeWoqV5VqVATjJ24KpJiCYESJBFR3ut+GDEoKaZYbIbr5rAv4jUhyLiW7E2PuPtpkiVtlD1FklS/BhToNdaAFl+wqnE2URbzj6HXUAxjKb6G6UQpB/djbbjSgWnWgUuNr3ZWlQ27SIEESRkD3hvdc9QrQsG+dcQ4lW9CoUiCdwELiRMc9pnmqQ9F2xeQYzmLKqnb1p3YnPEZRIt8Wn2bE+x6Z95MSsHa/NMAjSZjpl2+CZDYJE3F2G0PSoAmMvumO0uSFy7vpbp+5uEXz9gwu6QhLLi1A7nPDjw3jCdqlkHapRG4jmeRif8S6slo2yb64QwnzNNhZKGwohSm9syAFFSkj6UxA7T6J+jbCKur3JkyoFexG+m4nYcFlpKAkS5MKIQCAOEkEJ48jyARz51dOlbGyt7lw2tu00UMKP8NAQAFbQcbc5I798zFVjWLy5uWh477jsuAALUVCEgkYJMQO/fMdxWUTXYFV2mlKaUppSmlKaUppSmlKaUqM90Gv8ApNZI/wBPbtAngf8AnjSWf388jnjyQONV/qIH5RlWBtfSPeVAgQfxB9cVk9KVtuFzJBYdkD2TIMd4Ofbn0qsm819e47tDuRf4rIbh5PQ4RkV1RPvMR5jbFjV1r86O85EkIeYkISGHCGnmnGlqACkK441TlcHtgmfSAVf2rPCNyZyNyZHrJiP6/rVB+kfdmnxmFaYzn02Fj0zeS5d6gtvLuwQ3U0OcQN5IsbKMjqKSyfcFc/eYlljlvXy6ZMhEpFVIpnYkdUZSBqK0uFbnlAG4Sh9s8p3LSELbKuAoQFBJiUmRxFSXUFW5SASG3FNKSJJTGd5AA8pGPKCZ59BOO+O9u1+1FO7PzHKq2HIkhSKqhivNWOUZDMV3ejX47jkNblrcTpCwG2WosYthagX3mWu5xO8kncRzCojJBIMfkc/1qIRiAT2EnBI9cx+fXI5qqfTzg1/jGEW9rlVUKDINxtxdwN05+PKU287j6M3v1y6qmlvM8IcsYtFEqnLYkqU3avzY/d2MJGuBZ3LK89gJ7CAO0Dmf1rhUCDkyf6/Y5OfzWTLpJrQL7M7EI8x6qqgdwHge6mvyuDx8FXtO78/j58atvSzR3XjhMyGkjmQkkyAfQlvMY47zGM1E/wANof8Aesz9sAH7ds8dpq9GrlWJppSmlKaUppSmlKaUppSmlK6HuOz6mLSnP9PJgyCT8ANyEp5/+msRrid2nO8+VbazHYJWD+nr3iY9am6erbdNxyZSPckcD3PGKxu9S+y+5GXRBuPsfkrNNujU4hcYfLxjIJT5wPczDbVuSqdiGRsBSkVU/wBSXJdockabKq6XJcTI4Yedc1QHGd60rCilaApIIUQlSViFJWMynviDGJgCrMhwoBEAgmTKQVJOBuQTkKAAjMY4JrE9spuxu9n22VD0PT+mba+53D2eoYtFltRv7nMOkaiMQX5SqmyxnC48ROVW8atq/atIuscmGI0lAdRYMxXECRolW0eHKBIUAHAOJnAPJHCe8Gea1dSN5dRuIIQARKeEpSRKfMD5YwBn0irM4HtbiHSFiWRbm7+V2zGP2dlcV7NfabY4Lk004+mSkR2qxy+tDc5BaOypim0xZvtadhkrRECOZKGztDSkz9KgoEeRCUme30xIk8qmBMRM1xLVIAJAOYnviMknn3Jkn1qSMV3+2i3CvKWhxHL4Frb30XKpcCqbQ9HntIwm6XjuTxbGJIbafqrKsuWX4iqqxQxZPCPIlMx3ITCpGtqUxlUhQUU7THMf7SccRmuGDnHEE+04E/eslnSlCDdPmU8JAEm5rovIHHPsoDjvb+n2+/54/wDb+err0yiGLpXq8EdjhCZ5jnzZHb9DWI1L+Y17Nn+qif7/APOatlqzVjaaUppSmlKaUppSmlKaUppSutZgwZOMXbSQSfYuugD5/u5TI5HgnlIaJ/2+NQNTR4ljctgSVNKIH/rCsRmcf/akWqttywZAh1GTxBUAZ/BqBIqgthBBBBSD88/IB8/uNdfTifzVoqmPVpsT097hRcWzXd28b21yHDsgqXMO3cp7+LheW0M5LypTdPCyt5paUxLFlmS37GWHGmVEyoRjymm3DwvFkJCnuEqEEBUhR4+jzfbtW9BXMJmY4xGPY4/5iuMz+Xsp1MYtm+zVfn1fkceRAqv7WwcLv4yriDXtW1dcQS5KaZmtRW5U2viFLhbcU8z3FhaFluQ3tTcNLlKFblbCqCFfSInzECeR3nuciK0W2pMFaYnKTIM8E/STxI5/FQpgvSNsptVnb+4+H43NjZk+1fx3biTfXEwOs5Je22RWQfr3JSat6R9Su7BMSe/BcsI0N72aJhaTwdAvfAIAI4AzgD1OeJ/SuFQIKiIyADjkTj17+kHH2JyzdNEFcXb2TJW2WxZ5LbS2z+TiI7UKsKwf8odgOoH6lCjyeeTe+nkFFiFRHiuOrJmZO4JmO2B2ge1YC/MvkThKUiDiCRJj1HGasNrPVCppSmlKaUppSmlKaUppSmlK20xn3ESUx4/jR3mvPx/EbUjz/I88H+WuJ5O5pxMSShQGJ5EVqk7VJUM7VBUTExmJHH3zFVXq0RpEcKZeCeB2qVGd+0FPAIUlCu1PKueD2pJA11sUkEgSYURKRmR6YOT2wauBO6FbSJQhR5/zjdEwMiYnn7cVtrasblslp9fuGiCS1JZjyUEj7QSl5pYJHJHnnwpQ44J54ihRxvdSccAAiD6bMcjnnHIxW3A7/qf9zUb2NMmGlz2vpRwrnwxDjMA8cAA+i0gEgcAEHwABzx41sUkpHMmOSOSB35kk5iIntFMceonHpPrjifWfvNRXfTPpzMl6Y96LTLanHXVqDaUISlSlHkFJACUq/PkgeB+R4UggFaiBtSokRtwAcc81sWoQRgiJmR2++O3rV+dh4j0PaTCBISEPTKgWqkhaHAE20h+xa4WgqSeWZLajwT5UQSTzrs3TWi1Y2qTE+ClRiIlYCu2D7nuc4qtXKt77ihEbiMGZjHP/AD0qXdT64KaUppSmlKaUppSmlKaUppSmlKiO92mrprz8qisHqGQ+tTi2xGasICVq+5ZZjOuMPRUuL8rRHkhpI49Fpsjg4K80O3eUVs7mXFYEDc2DmJQFogTkmSc/pk2dUfbSlt0C4bSCAFEpWEkzHiDMDtIJE/euoK2kzNau05RTJaBVwtuBcJdI5BT9jlk80g88lQSCD444451jT00+ZPziEzGA2qI/KieRPJqR+9W/+mUfYuAiT3yg+/IPPauGsNicvncoTncSK2rnuUipmOOJJ+SkGehB/M/d4541qOm7jvfCO/8ADKvTiY9zBn0n02HVQZhiPQeIoCPTj+39MVxEPpCxKwk+tuBk+RZzG7+V07i2cfpJDRB7o86PVKM+dH8BJaVYx0uIKkvB1tamzLt+nLVsg3Dq7kf6doaQRzCwFFSh9iO3EGozuoOLwhCWhwc7yfsSAB6QU1bCBBh1cKHW10ViFAr4rEKFDjNIZjRYkVpLMaNHZbCUNMsMoQ202hIQhCQlIAAGrElISkJSAEpAAA4AGAKgkkkkmSTJPvW71rWlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKUPwf21ofb/APPfOMc0qoL/AFQ2dHe7g1OT7UZo1Hxi2lxMXnY3W3d81lNZGe+nJnvvuUddArXHLhMlhxuLKs2I1ZAsLx2V9OiLWquHXnGnbxt/TroJYcUhlxlLjgeCfKVKUtpttsFwLRKVLSA265/KRvPejXwastQ0zpa+0jrvp4u6xYMv6zb6xeadpy9HvHk/MG3ZZY1K8vL1CLBTTqVPW1k47eXFrpyWBd3CE1I21/UBiW51ZRS4UK8rZ11Kl1hr5VRZuJr7irhwnrussJiYaGq6RU2EqRSvt2aYT6rKvmM+in09TrHV2L5tpSW3kOOko2KachDqG0LebWoJhotLUplQd8MlxpxIB21VOsvhhrnRt5qdvcXOnXtvpjLF382xfWifm9Pvbl9nTr6yZNwpd6xfWzTWoNLsjct/J3TDocUlRI//2Q==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,8 +188,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,15 +471,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,18 +509,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>52000</v>
@@ -441,18 +535,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>50000</v>
@@ -461,13 +555,430 @@
         <v>20000</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>50000</v>
+      </c>
+      <c r="F4">
+        <v>20000</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>55000</v>
+      </c>
+      <c r="F5">
+        <v>22000</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>55000</v>
+      </c>
+      <c r="F6">
+        <v>22000</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>59000</v>
+      </c>
+      <c r="F7">
+        <v>30000</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>50000</v>
+      </c>
+      <c r="F8">
+        <v>20000</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>59000</v>
+      </c>
+      <c r="F9">
+        <v>24000</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>67000</v>
+      </c>
+      <c r="F10">
+        <v>27000</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>59000</v>
+      </c>
+      <c r="F11">
+        <v>24000</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/documents/MilkTeaData.xlsx
+++ b/src/documents/MilkTeaData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MilkTea\src\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E12985-73F8-44F8-B018-ADB00FBB44FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22438301-0585-4A91-BA3B-1606F9E54316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>value</t>
   </si>
@@ -148,17 +148,53 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAIBBQEBAQAAAAAAAAAAAAcICQEEBQYKAwIL/8QANxAAAQQBAwMDAgQDBwUAAAAAAQIDBAUGAAcRCBIhExQxFSIJQVFxI2GRFiQyUlSBsSUzQ2Kj/8QAHQEBAAIBBQEAAAAAAAAAAAAAAAQGBQECAwcICf/EADoRAAEDAwMCBAUBBgUFAQAAAAECAxEABCEFEjEGQRMiUWEHFDJxgZEIFSMzocEWQlLR8FRiY3Kx8f/aAAwDAQACEQMRAD8A9/GlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppStCQByf+CT/AEHJOlKjux3d2vqMvTgFrn+J1ubLisTUYtPvIES7XEkpWuO+iA+82+pDzaFOo4TyWQXuA2O7WKd1zR2L5OmP6lZs6gtsOps3X0NvltQJSvYsgwQDE8xU5Gmai5ai9bsbpy0LhaFy2w4tnxE/UjelJEjv6d66jV9TXT9c5HMxGt3fwORkkCdJrZFSq/hx5JnQ1JRLjxjJW0zOVHUtKXVwnZDaCfK/B1j2eselbi8d09nX9Lcu2HVsusi7aBS62QFthSiG1qScK2LVBqY703r7DDV07o2pN27zaHWnVWj21TTg3NrwklIWMp3hJI7V1XKOsvpow92S1dbrUnEKO7KmSayHd3dbDYjyBGkrlW1NWTquOuK4oGQw7MRIaa5eLXpju1D1Dr3pTTm1uXGs22xpW1xxjfctNmYO95pCmkAHkqWIj0zUm16R6kvCgMaRdlThCW0LSlpxaiCoBLbqkOKKgCRCDPaoz3a/EP6ctra+slxb203HfuYkabXsbd1/1uH6E1KVxFTbt96FTwluIUn1YxlPT4pIEqGwCFarvUvxd6S6btWbkv3Ws/MNtutNaMwLsbHQPDU5cb0W7e9RiC4opAUVBKRNZnRPhx1LrTzjXgMaYlpa23V6q6q1KVNzvAY2LuVhIB8yWtpMJCpIqGsZ/Fw6bJ10mjzip3E20fLqEKn3tBFuqhhtzj03Zb2MT7SyZSpKgsFupkILZDneUfcabY/tKfD56/8A3dq41bp24KkpCtRtWnLfzjclS37R+4S2I5Kk7e0zVhvPgt1g1bfN6d+7dYb2rUUWNw4l6G/qARdNMgqM4SFFRx5Rwb0t9RGxDtTi16N4dt01GbyocHErB7MKOPGyGdPe9tDhVS35rZlTJEoGM3ESBIMgFgth0duu4m+r+lnW7J1HUWiLRqRSmxUjU7Qi6Uv6Us/xQVqPG2Ad2CAcV10entfS5dNHRdV8SxQ45eI+QuSq2Q0JdW9taIQlAG5Sj5QnzTtzUyAg8/Pj9QR/yNWOaw9a6UppSmlKaUppSmlKaUqKN6MFyTcTArXGsUzWywO7kKafh3da36inFsoeCKyWEux3kV9g840iU9GfbkMhtDrff2FtcO/ZeftH27dwtPltfhKlQBc2nYlZSQoIKtoUoGQJPbMuxfatrpl55hNw0lQ3tqAI2zlQBwSkSQDyQAcZHiT3j3fyuTlmXx8ytXjkeKWUqptmf7VWD0i0m09m/VTYDhuE2Bs40Z5h4MMy3C0YBUWmksuqaPz46j62Zf1XVDq9u63qFgt62eI1JxLq1MLW043bqdC4kp3bVGABXuLpnpctWGmfu9TTtnfNtXTSXbFG1sOspcS6UIUiJCgAUEK4kRAHWajf6uQmATX2WOQq+OW0RsMg4DAckOqZb9R2S8jGI65Kn3UGTI9wp1anlKUktpS2E1V34kaI+u2+YZ1a3atv5bdkNNTtmAVKUbSVqWcrKgVKMckk1aldF36w+oOaddO3CgXXL9zU3DAO5IQg3gCdv0jZhKYCSCDXF5rv+xm8FVBZXe4sui97Hmv1cmPjBZkvREJEZySzXRYCJJbcBdDbzi2VucOqZD7aHRpq/WnTerWiLO5V1E7aF0uuNqetUB4qQAEupZZbSoJ2nb/DAMyZJM7tO6M1HT7hd0zb6Gm4UyGkOI+aBaAJ3KaXcLeUgrTAVmcAJUEgCt7S9XTWBYe5h9NS5c7TGU++WJTlQVBbxT6rTDbyZaorCz2rXHYfajrc8lvjuCp+mdddKW1g1pjFvq7dukkDe4y6cQNpC2VhCYP0gxG7GIHBddA6vfXvz7zmml4pCTtW4gAAcgNltSlR/qknB7mdnC6o63LZK2TU5XXqfbbYU3GhYvEILaA0kpmOQJKu5CfuQVoKPtSnsLfA1G1TqnpBbjrjqNWUlwJBS03pY3gpCSFOqslLlODAkAAAckGSz0RrFrBQrSyhMmXnL+RJBgIbeQCAqMyFZnOBUw45b45eviVZ1lvdypq1Bz6/e0D7a2glPd6kdmmYabUnwGno7bDzIbCWlpI7k4/TNZ6MS+3dJ03Vr19ToSyq6vLQADdCB4bdmAnbMkpAJHumRjtU0/qNpldu1caZbNJQEq+VtbwqVuGSlxdwFLBBgla1bsyCIFevTpDp89i7QY1f5/kMy2sMrpKW5hVUubIs/oNe/DCojCbGS867KdmRVx5L3HDbZKEIW4QpQ+jvRb15ddO6TeXiCyq7smX27dTinnGWXBLIW6cuKU3Ciok4UAMV4V6oTaNa3qFtZpTstbp9hx1DfgpefbWUvKS0AAlKXAUADkJk5q0+rXVfppSmlKaUppSmlKaUr8Of4Cf8vC/37CFcf78ca2qEjHYpPr9KgSPyBFaH9PxNeBf8RmPXYX1a7+YuzHWgsbq5QtPLSG2/aTZ4s2HUnuP/AHvdrJB+OD9xHg/MP4v6cbHrjqq3GQjU7pxtMCdlwvxweBH14IyQBMmvov8ACZ5zUejemrkrC9mmsNKzkqaSplSUzAJSpEK7CO2DVQlezTXh5DrKg433lCFoJPPzylHKweOCf6/HjXRtzaupJdgkQVRBkbTBBA7gzMEn2FdtIhS9sGUqAOIyQDifbnj0mait33BsTIaW4hsKI8qHarkkDgH9CPBA8cH5A1kwpPgpQU+YgTIIx37DJkYMYH4rJrR4zcKJBwoRySngR7845I5ia5Nx73LZLykq8HvV/iPKefCgR455Pnnk+NcSEpR9Ig4zmccGeZnP3k9zUZtvarMjKZkDkKAxjP5n2jmt1jzxiSXpKGi2BwA4R2+OSB2ngjx8DgjtA/XUW986WwpW9QUZB7CCUkjBweDMeuanlAWhSe5xiJjHr/fH9ZtJtVZzJVxVNdy1pdebbJCeS96zwSWwe3n7wvjuT5V8D551mtAtnFv2p8ylKUCABBWVOoSnnEKny8yYA71T9et2Wra5UchCDvUqPL4aFElRGBxKuwyRzn+gnhFKccw7FcfKQn6FjdDTBIAAAq6mJBATwSO0ehwOPHjxyPOvsBo9v8ppenWnHylhY22f/DaMt+3dJHA4/NfK+9fN1e3l0TJubu5uPX+c+4sc5iDI9jPeK7RrJVGppSmlKaUppSmlKaUoRyCD8HwdKV40PxvtoEQOtKxuqevjw0ZzttiGWzEsx/TRMs2V2mPTJaw0UJXKmKoFrefKVKcfaUtZ71KUrwP+0lpRY63FxbobSL/SbO4WkJgOOoU+w44sjzb1BpMmf8oJySa9yfs5amXujHbR5S1fI6vdtNy5lLbiWX0IG4GEhTi1JA4Co42gYkIWLy4kJAkMJdQ24EMpJdSXGyoJW39qFfw+4+CTykngH8tecj41u0EBpt1CVAmNwJCleZJyQZIJnP6V6LTClkJVClgqKgoACMSoEE8DgR2kSa3MzEUKc9ZEDsbcSXUdj7hSykEJIWCwFDhYUnu47SfA8+TBft3t+/wIQqFbw4valMQR5mgACruVY7YkCQ1coSgJ8YEoJSYQFK3ElWfNGOCNuK4t/HksKWr2Y9IhKnOX0qAQT4PPpcBJ5AKuO7yQfjnUN4BG5QSsoQmSW1pIPYzKCcGAYIAmRziWyA4QCsBZyDsUArI2gndg5nAAMkek/EMNxAECCVAq48yfAHcAeR6XaeB4HPngc8E60t1JJRtttxJEKW5IIUfpwJ44yMmZ4nmUhIEquA2Y+kJMkEkAgE8mD+B6Zq8HQjQws56rdg8JsKmJLgXG5eNs2EGShx9mRX1z6rmWw+hag04w9FrHkuoUzwpkrBHHx3f8LNHb1TrTpq0ftGlW51W1K21J8VJat1eOoLC5BSQ0ZPciDgmepfipfq07obqi8buFhxOl3aWnICVeI+BboKSnO+XIGR3iYx7zh8fy/Lj44/L+g19MR+n29O1fNGtdKU0pTSlNKU0pTSlNKU0pWBn8W7Y2fn25u1+XQK56UlGBWVDJfZaUtINXkL9i006sJV2ji8dUnkp8lRHjnXkj9pDRH7vUNC1C3ZUofu+6tXFpStQJRdeIlJ2iBAVMniSQfMa9Pfs/a4xY2eu2DzgbKtQtLhvcRw5bqbXtBIyVNiY7ECJ5w4TenaehAS7Vuodblk9qmldxbBKkhJIIP8QJ5TwU8/dxyTryS9bPNlaFtQSraUqPBgEEcgZ4+kyJr1AjW2d4Lb6TLQB27gEmIntJgye09546La7LT4K5UgxkJDgUynuZbcWtCENJS085wHOxZ9dS2wT2rcQVJCW9cyyHWwl8LCAG0LA8Qggg7kpQCEYG3gARgAEQrYzqG1YUypPKlpVCSolASkb1QVgK83IV5jEkGRVzeGJYbUUka+m41aW2PptIsXJZ8FbSXMYp5SHEyMikw1JW7OhwpIY9xHj8NsRyp0OAJUk5Tpjpa26gubzTWbtm1ubizeNk2807svrhJQRZsOkpQyp9tKlJcXIKwrAO2eDWerDpFuxeutOvMNPtoecacaCrVs7j8w4iAp0tOES02ICJJcxtHwi483e18K0qV++rbGExOgTIQEliRHld77Kw6wHEOIU240lt5KgntPcR9igYzfTSra4uLW4QWV2y/ly0lspU06mEKSskK3mQFSf8pxAzU/8AxYw7asXCHA746Uub1qGxSHCSFIIUBt2Kjb9M99wIOUf8KLZq0l9Zm1+QyayY3CxhjJsjXIkMOJaaXDxiygsqClgDla7HhsAk/d4+Tx3/APBHQnx1hp9ypkhq2RcvqWUkgeHbltJkgCSpU4ggkSDXRvxt6wYuej73T2XQXbl61ZLQUmdvzSFqMJwobEHsfUkBOfYikcJSP0AH9Br27Xi6tdKU0pTSlNKU0pTSlNKU0pUIbwUsGycxx2bGakISuxipDrQcCfWQy8oDuBSkqDH7kA/oNVLqqzZumrYPsNvIC1phxIUBuTkQeAYTwBnv6WDp+7ftXrgsOraUUoXLZKSQiQSSn/Tu4J78HNQPY7Q4FNbWt/G6tR+5XIiNpUVfPcCjtUFdw+R5/TnwNdZv9E9LXKpd0ezlSgoqDYHmwATAkx7z78YvDPV2tsQE6lcxx9U4P3Iz+D2rE7kHTzL6sN8t0qGNe3W2vT7s/fLwR1vb6RGpMl3KziHFhvZAuTlbCHrSsraSS+9DDVTIhdgYjGSmeq0dbg48/D3pXx1xpduAk7CUpkhW1JIhQCDg5JB9sismOuuoGG0bdQeWoqV5VqVATjJ24KpJiCYESJBFR3ut+GDEoKaZYbIbr5rAv4jUhyLiW7E2PuPtpkiVtlD1FklS/BhToNdaAFl+wqnE2URbzj6HXUAxjKb6G6UQpB/djbbjSgWnWgUuNr3ZWlQ27SIEESRkD3hvdc9QrQsG+dcQ4lW9CoUiCdwELiRMc9pnmqQ9F2xeQYzmLKqnb1p3YnPEZRIt8Wn2bE+x6Z95MSsHa/NMAjSZjpl2+CZDYJE3F2G0PSoAmMvumO0uSFy7vpbp+5uEXz9gwu6QhLLi1A7nPDjw3jCdqlkHapRG4jmeRif8S6slo2yb64QwnzNNhZKGwohSm9syAFFSkj6UxA7T6J+jbCKur3JkyoFexG+m4nYcFlpKAkS5MKIQCAOEkEJ48jyARz51dOlbGyt7lw2tu00UMKP8NAQAFbQcbc5I798zFVjWLy5uWh477jsuAALUVCEgkYJMQO/fMdxWUTXYFV2mlKaUppSmlKaUppSmlKaUqM90Gv8ApNZI/wBPbtAngf8AnjSWf388jnjyQONV/qIH5RlWBtfSPeVAgQfxB9cVk9KVtuFzJBYdkD2TIMd4Ofbn0qsm819e47tDuRf4rIbh5PQ4RkV1RPvMR5jbFjV1r86O85EkIeYkISGHCGnmnGlqACkK441TlcHtgmfSAVf2rPCNyZyNyZHrJiP6/rVB+kfdmnxmFaYzn02Fj0zeS5d6gtvLuwQ3U0OcQN5IsbKMjqKSyfcFc/eYlljlvXy6ZMhEpFVIpnYkdUZSBqK0uFbnlAG4Sh9s8p3LSELbKuAoQFBJiUmRxFSXUFW5SASG3FNKSJJTGd5AA8pGPKCZ59BOO+O9u1+1FO7PzHKq2HIkhSKqhivNWOUZDMV3ejX47jkNblrcTpCwG2WosYthagX3mWu5xO8kncRzCojJBIMfkc/1qIRiAT2EnBI9cx+fXI5qqfTzg1/jGEW9rlVUKDINxtxdwN05+PKU287j6M3v1y6qmlvM8IcsYtFEqnLYkqU3avzY/d2MJGuBZ3LK89gJ7CAO0Dmf1rhUCDkyf6/Y5OfzWTLpJrQL7M7EI8x6qqgdwHge6mvyuDx8FXtO78/j58atvSzR3XjhMyGkjmQkkyAfQlvMY47zGM1E/wANof8Aesz9sAH7ds8dpq9GrlWJppSmlKaUppSmlKaUppSmlK6HuOz6mLSnP9PJgyCT8ANyEp5/+msRrid2nO8+VbazHYJWD+nr3iY9am6erbdNxyZSPckcD3PGKxu9S+y+5GXRBuPsfkrNNujU4hcYfLxjIJT5wPczDbVuSqdiGRsBSkVU/wBSXJdockabKq6XJcTI4Yedc1QHGd60rCilaApIIUQlSViFJWMynviDGJgCrMhwoBEAgmTKQVJOBuQTkKAAjMY4JrE9spuxu9n22VD0PT+mba+53D2eoYtFltRv7nMOkaiMQX5SqmyxnC48ROVW8atq/atIuscmGI0lAdRYMxXECRolW0eHKBIUAHAOJnAPJHCe8Gea1dSN5dRuIIQARKeEpSRKfMD5YwBn0irM4HtbiHSFiWRbm7+V2zGP2dlcV7NfabY4Lk004+mSkR2qxy+tDc5BaOypim0xZvtadhkrRECOZKGztDSkz9KgoEeRCUme30xIk8qmBMRM1xLVIAJAOYnviMknn3Jkn1qSMV3+2i3CvKWhxHL4Frb30XKpcCqbQ9HntIwm6XjuTxbGJIbafqrKsuWX4iqqxQxZPCPIlMx3ITCpGtqUxlUhQUU7THMf7SccRmuGDnHEE+04E/eslnSlCDdPmU8JAEm5rovIHHPsoDjvb+n2+/54/wDb+err0yiGLpXq8EdjhCZ5jnzZHb9DWI1L+Y17Nn+qif7/APOatlqzVjaaUppSmlKaUppSmlKaUppSutZgwZOMXbSQSfYuugD5/u5TI5HgnlIaJ/2+NQNTR4ljctgSVNKIH/rCsRmcf/akWqttywZAh1GTxBUAZ/BqBIqgthBBBBSD88/IB8/uNdfTifzVoqmPVpsT097hRcWzXd28b21yHDsgqXMO3cp7+LheW0M5LypTdPCyt5paUxLFlmS37GWHGmVEyoRjymm3DwvFkJCnuEqEEBUhR4+jzfbtW9BXMJmY4xGPY4/5iuMz+Xsp1MYtm+zVfn1fkceRAqv7WwcLv4yriDXtW1dcQS5KaZmtRW5U2viFLhbcU8z3FhaFluQ3tTcNLlKFblbCqCFfSInzECeR3nuciK0W2pMFaYnKTIM8E/STxI5/FQpgvSNsptVnb+4+H43NjZk+1fx3biTfXEwOs5Je22RWQfr3JSat6R9Su7BMSe/BcsI0N72aJhaTwdAvfAIAI4AzgD1OeJ/SuFQIKiIyADjkTj17+kHH2JyzdNEFcXb2TJW2WxZ5LbS2z+TiI7UKsKwf8odgOoH6lCjyeeTe+nkFFiFRHiuOrJmZO4JmO2B2ge1YC/MvkThKUiDiCRJj1HGasNrPVCppSmlKaUppSmlKaUppSmlK20xn3ESUx4/jR3mvPx/EbUjz/I88H+WuJ5O5pxMSShQGJ5EVqk7VJUM7VBUTExmJHH3zFVXq0RpEcKZeCeB2qVGd+0FPAIUlCu1PKueD2pJA11sUkEgSYURKRmR6YOT2wauBO6FbSJQhR5/zjdEwMiYnn7cVtrasblslp9fuGiCS1JZjyUEj7QSl5pYJHJHnnwpQ44J54ihRxvdSccAAiD6bMcjnnHIxW3A7/qf9zUb2NMmGlz2vpRwrnwxDjMA8cAA+i0gEgcAEHwABzx41sUkpHMmOSOSB35kk5iIntFMceonHpPrjifWfvNRXfTPpzMl6Y96LTLanHXVqDaUISlSlHkFJACUq/PkgeB+R4UggFaiBtSokRtwAcc81sWoQRgiJmR2++O3rV+dh4j0PaTCBISEPTKgWqkhaHAE20h+xa4WgqSeWZLajwT5UQSTzrs3TWi1Y2qTE+ClRiIlYCu2D7nuc4qtXKt77ihEbiMGZjHP/AD0qXdT64KaUppSmlKaUppSmlKaUppSmlKiO92mrprz8qisHqGQ+tTi2xGasICVq+5ZZjOuMPRUuL8rRHkhpI49Fpsjg4K80O3eUVs7mXFYEDc2DmJQFogTkmSc/pk2dUfbSlt0C4bSCAFEpWEkzHiDMDtIJE/euoK2kzNau05RTJaBVwtuBcJdI5BT9jlk80g88lQSCD444451jT00+ZPziEzGA2qI/KieRPJqR+9W/+mUfYuAiT3yg+/IPPauGsNicvncoTncSK2rnuUipmOOJJ+SkGehB/M/d4541qOm7jvfCO/8ADKvTiY9zBn0n02HVQZhiPQeIoCPTj+39MVxEPpCxKwk+tuBk+RZzG7+V07i2cfpJDRB7o86PVKM+dH8BJaVYx0uIKkvB1tamzLt+nLVsg3Dq7kf6doaQRzCwFFSh9iO3EGozuoOLwhCWhwc7yfsSAB6QU1bCBBh1cKHW10ViFAr4rEKFDjNIZjRYkVpLMaNHZbCUNMsMoQ202hIQhCQlIAAGrElISkJSAEpAAA4AGAKgkkkkmSTJPvW71rWlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKUPwf21ofb/APPfOMc0qoL/AFQ2dHe7g1OT7UZo1Hxi2lxMXnY3W3d81lNZGe+nJnvvuUddArXHLhMlhxuLKs2I1ZAsLx2V9OiLWquHXnGnbxt/TroJYcUhlxlLjgeCfKVKUtpttsFwLRKVLSA265/KRvPejXwastQ0zpa+0jrvp4u6xYMv6zb6xeadpy9HvHk/MG3ZZY1K8vL1CLBTTqVPW1k47eXFrpyWBd3CE1I21/UBiW51ZRS4UK8rZ11Kl1hr5VRZuJr7irhwnrussJiYaGq6RU2EqRSvt2aYT6rKvmM+in09TrHV2L5tpSW3kOOko2KachDqG0LebWoJhotLUplQd8MlxpxIB21VOsvhhrnRt5qdvcXOnXtvpjLF382xfWifm9Pvbl9nTr6yZNwpd6xfWzTWoNLsjct/J3TDocUlRI//2Q==</t>
+  </si>
+  <si>
+    <t>Hồng trà ngũ cốc kem cafe</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHQABAAICAwEBAAAAAAAAAAAAAAgJBwoBBQYEAv/EADMQAAEFAAEDAwMCBQMFAQAAAAMBAgQFBgcAERIIExQJFSExQRYjMlFhInGRFyQzodHw/8QAHAEBAAIDAQEBAAAAAAAAAAAAAAUHBAYIAwIB/8QANREAAgICAgIBBAEDAgYCAgMAAQIDBAURABIGIRMHIjFBFDJRYRWBI0JxkaHwCME0UlOx0f/aAAwDAQACEQMRAD8A3+OnHHTjjpxx0446ccdOOOnHHTjjpxx0446ccdOOOnHHTjjpxx0446ccdOOOnHOO6d+3dO/69u6d+39+369OOdLodJQZOmtNFprevoqKkhmsbe3tJI4dfWwY7PM0qZKM5ogBG38ue9yJ3VGp3c5EXwsWa9WGWxZmjgggRpZppmEcUUaDbO8jaRVX9knQJAPs8zMdj72Wv1cXi6ljIZG9PHWp0akTz2rM8xKxRQQRhpJHcg6CqfwxOgDrAnHnrG9L3LKnTjfm7B7D4Z1jT1p7X3fthlKoQjtEKIS1rpZWuZA+ckdLBRlWEshoiK3Wl868QYwAeQY4LZLLDK8pSuzIVBU2XVa6N96lVkkUuCWQMoJG7eRfSj6k+JWBV8j8Lz+IsmIzLBapOJXiVSzyRohdpVhAIsGMN/HbSz/GxA56vc8+8bcdllfxVoYtdErYxZttPeqPiVsMDPcMeQ4aPJ7Y2I5Ve1isVWuYxzyNcxur+UfWPwbw/KpiM1lhFZMRlmMMTWErJr7TL8BkdifanogAZXALFGUQeO8Pz+VpPfqU3NdT9pk1H8g2wLKZOqlVK/cQQQGU6AIJ6biD1W+nXnqVKr+I+X8Zt7SG1SnqKywdHuUjp2X5QqezDBs5MNO6d5kaKaMir293v1K+J/VHwLzad6fjfktDI3ow7NQYWKN8xofcsdK/DWsywhSGaaKN41UgsQORd7EZPGgNdpzQo3oSaEkW/wBD5Yy8ezsaBYE7HrfrmfByoxlc0RxEcxO72jIwjmornMRXNY5yt7vY5ieSJ3e1zU7uaqJvvZfzsa/O9jX+Nn8Df6/vyNPobOwD+9H/AB//AKPXPo/Xr6/99jR/3B9j/oeP/P8A09j/AL/vjpxx0446ccdOOOnHHTjjpxzFfJ/MmH4jo5N7r5xggjxpMpYkIQ5Vg8EYbiOKyM4wf5b3NaJhCEYP3Ht8nNZ5ObWf1G+rngv0spQXfMMsaQssfhrV4javPEG+NrS1EIkNZJesRlAIMjqiK5J1tHi3hvkHmVwUcFSaeYkIHlJhgEjAlYjMQVErKGdYzpyisQNgjmpgb6s/1VN/6y7C4494dsONPTtENMh1mS50xEfHcfEypzlpa3SzdjbTqbTX2mbMFIvQQcqSWa7BGUdbXBiKwZ6R8v8A/lH4LjcPLfxXnnjrWbFg0cfFSRvJClyNUlaO1j8Ys9qNAssMdyW3JViqS2I1L90+M3a/0Zo0sYta8l5sr8SzmaFXUyOJkhki+8fxoYwS7RjpKZFjJEgAZzPv1IXHqc9WvD+mv8fzHgcpxjpaUdHajJZX8bH6eRAuC1OpCej/AIfk3/2+qNXlDFgvKA0mYhklSTgAaxHWuS+pnkmVrZHN5zyqGfAeQJTapjsfHNUo08bEokQS0J0W0btyaF3A7CSOFY5nIgSWY3l9Dsx9Jfplk8RPf8Ayfknm+Ks2bFW6wghsUbgqKackN5rqRxtNNMTKTA7V44khhJlnMEtdGUoScI8KE4p4E12Yzm81F+691G1ouKtS4W7kRY8eBCsKKidf3tpHJVUgpcpxmLPimlOtLEcardd2MgXJuf8AqZmPNsxXo4+h5FT8fpQTmfE4dqkkzzxMzfybdyuSsNcRgSMAI2i+VQ0nUrux/qbH5P5rnLHkz5ipiP5BSOumbyq3p8cs7LJ/p9e2lSnHHG1glhCB80n2VxI4jiUSc9PmW9RfOBn8dclcqVk+hPlLqwn6xMbaSau544ZFJSVF3Kfp5MeWPa28yZPhrDqYra8MFqHhy3HkHlEvTxbF+LeU0K5yUfk1a4nj7ZGxkvImqRJRtVpLFdkhSLvYmkX5nXH/AMiaUss0svRHYMaJzUVnxrGGTIDC5O0uSGNWHE/L/LvmdYZmew+2qxICoe4RGFdo4kTswl1BvlP0JbnE7XWQuA2cq2dbU1oa8F7xEG6WQ0V+FYjZ9G8k0F1XXxmSJkdI+d0J2U/xyWhvKO4/ho+GhzGO8mo3sXiL3k9fF5CpdxnkNBZa9hkMkjBJooykNhgyzJL3M+wslduq9g2r0LHj2Lysk3kvj9ixjB1+bGQ5GOpMCPXZ5WrywyjoQTEK8ayNtdgkE4/9M/G31APQP6lay14q4f5h3PLu6p9dlMhmeevUFon8OXwszmLi+19pvY13NrpA5T4wIJ+OJM68rMZb36S7Grl3EsAn9drePedWYb8TZexF49aSrJI2PtPE9i6Jo5B1gr/yRHkjXAeaQ1P5Eh+OMMvRyrbd9VKf0m8k8UxVjwa1lrfyyiXN1bmOj+fDTL8LwfBkIK7QVTNYZ61mOWQdNKG6KmuXB+mv6yfqCdYVcP1VenefWxIs+9zXKreOaeSTT8N7KldJV0K1rS20il1WdOMEU0i1pJqMq4dkKwfaWEZgUlahH/8AJLL+J+U+QYfy+Gr5FhMdXN3HXMBUSh5FdrmGOVFrY61ahoXSxZkC/JVsP9zxJ2Uw8oiD6R5LPTV08fjkgjs2UqrcychTFwyMdN/ItJC0sSR9k+SZUljQsPQ2AdiLJaau2eYz+sqWSh1mkpqy9r2TRNBMZCtYYp0VsoLCFaGQgDDUokI9GOXsjnJ2VewMLk4s1icbl4IbVeDJ0at+GC7EIbcMVuFJkjsxBpBFOquBJH3Yo212dcqTIUpMbfu46Z4ZJ6FuxTmeCT5IWlrStE7RPpS8bMpKOVXsumAG+ei6k+YfHTjjpxx0446cc661SWsE6QVRJStX2u7kZ+fFf6Xua5rX/uxXtUavRqP7NVVTzlDGNumi2vtBJAJPoD0CT7PpdaY/adAk8+lCFlEhIQsOxAJIG/8AGyP+v6/P+OVh8pYDi7k23jRuQG3FtOpZYklusdRP7Wb68zCMZbxIU9WWcVkqOFz4jGkj+MeONyOENrOuKfqJ9P8Ax3zbMSTZKKrmslXVaMtqfN/HkUNcqAHhkkEkEkDxqQ9QhlaOMjRXnSHiflOZ8cxzJjicZBdjaVVr4pDD1mDg/wAewYGaPvE7hWJj7dpSDtmJ6m74U4pt5dPbli5sljnpkixplvY1ZdNr5U6O+MSVDrdPAtK2LNeIjmxp7I/zAOa0sYojMY8ej4b6MYHxJ5LPi3jlXC2Ximgms1A01kwShwYu91Z4vfclZU3IvZniZJCWEpN5hZyMX8TJzS267NGxjm6wDvD9sUheq0MrFUBUxkr2HRZEMYRD0XImIfpMhSZI23fSV1RI+TKm09bTum6MgSlNBi3BpgX1q1cc7mSJldWw4EWeaNHbKRscbQdQ/kPghvYQYK6LsVUw2ILVyOOSbK3vld2j/lW5Cw3XDIY/jSKKdlZplkUqqTGCytOhlpMtVgSSWUoa1aSaSClS0qiT+LAhVwXC6EjNJLCnZY5FZi5h4HhCrw8J8eDzrYydbYMmwrnX6Osj21sSgsFY6zqM9XV91WwsuOUFSDI+uGUXisdz4zxRkY/QPHvpx4n4XPMlCTKBbARbMEtOeUW41DEpOyF5XjZmJmhVik7Kjup6gHfsr5TkvJljNjHU4q8JjavDTkSKFJkXSzSGVGeeZAGCSS7KiSVTsOCuK3cF5KmPoLOq9S20p7+8jZ2rHaCrbm4LVUOXdKWFSwZEq2mWz4khslzpyus2/IIxzhtaNRiZIZnwzx7yOzRsyZzyWhLULiX+FRyZSwJF+JDLtJnCwRFkiROq9HdHYr+JHGeYZHE13qnxvA5CsklieGG7PjVCzW+hmlVZBGkkhZVZXfuyMWMQEhLnJ/G27z/C6S5MvmbRb2TIrxUrW3GDtaypCMCv8ZMdiTgznz5X4bay0mObPRoht9liPVdvwnjmP8fpCvibflFuRq5ruZ8HbSGSF3aT4UR/hEcPfanr90kXWAuY1UDSM7PLn7kk1vH4bFxmQTqkGWruysCA6gKZvwo2g2fi9uF3pl8FL1llyDuS7/kbmXTbstRpAX2FzmPzsnjOhyzoYXxK6uaKPobWxuIMOO7xMGTJSLOltWVMAUrE9rLl8at5nNRZ3J4TKZPJVpK7Y+eWF664/wDixCGNaUTMEpwIgCIsahujakeQqCPqndo4TG2cTjbGNq1r9dquRM8q3Zr8byLNIZpWjC/I8o7MwC6VuilFC86O5w2HvbywuZmX0c6ff/a3yX6Dk3R1ldLJVsSNHmtES8ixgPfHRY88sZrEnAUySWEGd/uSx+nFXJW1v2/GaotBI4llyGQaFJfjdXQzK8yfKVdEJZkIPVQG/wCbnnD5fJjqaUKuYda0Ly/HFToLYmjMxb5EikEcpRGZ3ZI1cKjHsqduWYehjf7TVay5y1LrsrY0mRq6iNaZahtC2Fdj4CnbGrmHKUjTknPixDRIldGhJEKxqTSW7RjQBuovppby0ss1SxlaV2OtBCktOm7S16SdtIfmIBkk+0Rxxx6XortLKwRQ1C/UGvjo4YLC4y3VnnmldLltBHNddgS4ESjSK5PzSSSsWUAJEimRiLcern/99/8Av/b/ABypR/n3x0446ccdOOOnHHQ8cq19U1Cmb5EJYvtYNFAvwtsAPm1MOyqylRyCkKb346EinaRquJ7coHkNrnNejnd14p+tuGbD+XvkhBUjp5WITxuYImLyhQtjsHMZjdpFL/IAVA9h2Yvrpj6W5Fcj46Kg/kS2aDywyATsp6kfJEsRUt2VY9KVKggrob/UaXxrg4HuoLvjG9V3d6MhS7zPGYjF8kc8lTfXoe3dFTskET1V3igxvYVUraE9lBrX44iyqWSO7brOfQPXUWQPUrvsoSH2CdEaI5u8jKG62KVnZOkeSCrYBQnTbEtKMsTr1uUk697HItcxf9S6mtlSH1MMohu/Aa/kq9kIR7nud2bDt82Fjlf5NVFSSjWp5K5XKnUXcyFyBX75qwqIrHqt+ayvQnT6UgklW/Rb++/YJ5sWNrUrEgVKcTMdDs9CKEn0B/UjaAG/7H8/rlWfJOw3gSylLkb1zkVzvcFp6Uqon58l8nyAERUavZvft5J3VG9k7L70sm7FWGVkYjX5jmGz6/DHQb9kEHR/IGhvktLjoQPVKMgjWgwVfzv1sgEe/Q/Oh71rkHNryPyJHcb49PsIfk8qq4WphsVrka5GlT2LcSM7Kqp4oqqqOVqeCIvW3Ur8p6lMlNv37X50KggDR1rf2+yTrX6I/cNZpxbYNjUI6nQIRx+wNF2Yj8b/ADr17/POtwG45Y0Gghx5Mzb+yEyOaORtZCsY5GoiI1qS5TWIjVX/AFMYnZyqrGp3/Eyb04jLDJzt60oWayQrH36XuB2172fQ0D7I0YV6VdSxGLqjR/Lx19fjWv6T7B/JC7bYBOiNWl8S1muspEX5yxBKGOrllaO8srITHe6NrBEC8UVivYr1J3SYJV8Vd7nkndcaKzZmkG7crD3ppJJGXf6/qk9k+zoa1o7PvmNYgrxxnVaGPeiUiijQb1+FYJ6LHX3a3s/53yZ3x89W1JT3XIeZr18AvZHy9ZVBsX+Lla5ElSn6SeNGMc5CjEWGQieXm5R/jr4tXEh6/NbAPYKgjEYZiNsu9l3C7H3EMnoa2COY1WGSVisdSRwSe/zd/jVdDZ11RNp6A2HAPrXvXLmPpn8b2GO4BXU3DYhLLkbQ2GjDPb7B7SbSCf8ADpy2k8UcKyCFGI0oQWueOOOQid0K4rW9N/SPGTU/GP5lkQmxlbT2xJGi92r/AGrF8kqqqv20zqB2CbARvzuhPqhkYrvkf8aBpvhxtaOqySFgi2Dp5fjiJJj67CMdqXK/cvULqxXq1uVxx0446ccdOOOnHHTjkUPVpim6PCR7GEJrbWrmo1p/julK+DIGRJEd8ZHt98SL/ORid3Nc1VYn5ci0z9a/Ga2b8XFo1xJax86tHIpcTLBMGjmRNEgqO5k6dT9wHUrsnlk/THNyYrOtAZula3A/eNtfE00JWSJj2ICelZSR+js+hyk7kLJ3UVz/AJvHlLdMK7sOTWnWpMV71Go2OHZxIjGnOiPcgmyisa8Ktd3eq+fDd3EWaMUsyvajgiaOJplhYo/ynqCXBXq3ZtBCApKlV7aPOqaWWrTSJEbCmV1aQRs8e4wGVPaAuSFHUlgSQrgvoHZh3v6wkQchFwO7p2s9xnelumGarPFXIJH19q1Xub3VHNVFa0bHKrmeCNbixQ2fkA/kw+yoPzxaA3olfuiLeifbdte/RI5PJYgYeurMgP3IwLFgNt7XQBGiAB+f3vYIr55OlRgtmIQPLUIjUVyjWRdqzv5J/S5bR6d2o5ivcvZf1Vqdl7Ls9GtMnVm/01hs6ZlTfob9MU2oP5AP6J/3855oiddrK7UaCuQPegANNon/AJSffs6975BDbWoHGKN83kv8vI3xOS7RyeHn/WjpbU82kavkndO6dmr5qrlXcKUDgL9mP0F2CoX7veiNldn3r8H1/tyCsSICR2uEqSNbdfx+/ev7+iv5/wC2vYcHRxy7lpEFt5HYiqjTlsFR6eTVc1zSz17d0/KI1n90Qnii+MrPGQg7Gr+B9yxoeo3+fxv166n9+/X55Ds4LHQsOSSNMzD/AMEjegPYP6/W/wAWr8eUb5scSNy5yJ4J2W1msE1z1RPBURSGMjmqivaqMKikRUaRERFSLkrM4YHs3b/+P7N+xoqTrXobP4PXtrRIPPj5VRgdKvU702m16IHr2N7I9j/+uScqM1YzJtTm4eciGJZW1NTugRYs1w1HaWsaCVz7RBQH+0gJB/NQtYdxmPepRt9tevGDBNbuU63werFiGEBpmRtPKo1o6dkckr6O+3UegN8+ZsrHBXtTtYKfDDPL8iImj8aFtEFiAdhQC6lCCR12dc20sfnKrI5ehzFHCDXVFDUwKquhR/8AxR4sKIGOIbfyqqqIzu57lVxHK4j1c5yuXvbH04cfSq0a8aQw1IIoI4kXqsaxoB1A2f3sn+5JJ975xrbtTXbVm5YkaaezNJNLI7dmdncnZP79ED/AAH4AHPSdZnMfjpxx0446ccdOOOnHML8/LOHxndSK58kUoJq/saGAMmSERpwASDADIaQClGAhFY8wTjG7s9wSI1UTWfL4TN4/kFGvti7+wCPtZTrRIHv/ANI5MYBwmVq7/wCZmT+or/UPz6I3+APXvRIH50YEQ6e/QejFrbap08CdZQpWaHHpWVlhX1i1sGNKrrWMNxo8mU6yjybNJozKiLYmiMYMUQDE5TnauY5qrLHIjsUmhYCRZA7EM3QkEBPtCncgXozBiFbVyacNDPGZIZETsGD6VXX7kCsv3EFgCVJB/G1BHuNWhxfHehW2BB+HMLWTywbGHFmyhuhTmq5xY0qOKQwgCOY9sgKuEJpO3mJF8VVNByXiyY0tKkbLHL1lrq3cKUYlSF1IUAVGGinVC6nSKQVXdMf5JdsIn/F06Do5IjYghd9wzRBm9jTH2epKktvlKfrGqZVbyXScX8cYSyub7U0/ywziDsHUmeiilED9+tbUykFGjxDP9xexFkSHPDGGwvup1u/htDFJirl/KJWlVZTColAJWOOJG3tn2XmLAx69sP6ftI5j5jK5OxZrpDZkiMYVtJ1UySu7aUIqdSiaKs2tA+3Hb2MGW/pngCz9SPS2p592KG5lrJiPEg5ZyowjZLFlxnkRoE/lqNnt+aorFKZrlR8DcvUpbsr4yoK1Z/QTuw0BrtIqszaMhUkgsevsqQ3Ngx9m8K/x3ZvmlA2rvvv7YAxt0CppBoDSje9sPxz2nGHE2RybmyJEszpsknx4TXnjrIkSFYpO6NRFI9zRM8iFF4t7o4plTwVElMbFPfnKqoMUYDP+FRV2GIJPsE+9D9jbD1vkflbrwQkL/U5OioZuo7a3/V1AJ9H7d+/W98sY4L4mi1UA5r48q9HNnOmwm2Tka6EJ6Nc2C14UC+VC8UQiBkqYzV7tahGPUbs+61eaQfBD8fQqr9G0hKDYYfcgYn+pgDttEEejqCNuzGr9n96+39P9x/zvr6J6n9et/byf/H1LDn7jjOoYGK5ptpmkG1wmucNgJ7DvUSoNVXxYLxarOyta1VKrUREXLwdeO15BgoQULvlqaRvo9ox8oeRVB99WRW2AfSbB/IBispO0eJykgLjVCx36n0xMZUFtEbI32OwNn2B61y8dE7J2/T8r+P8AHde3/rrsn8855/H45z0446ccdOOOnHHTjjpxzHnLAXm442TRKjStoZxRPXw7jeISvQrPNUb7jERVZ5Oanl27r+idROdi+fD5KIey9OcD/r0JB3+ta/fr+++Z2Mk+LI0n9nrZi9DeztwNaHv9++VfQuTaW0u5mPSPcwrqlz1LczG2Nb8WJKrbE9jXMbBlve4U4kSRVGZKdFe4LEkxUYcrySRg40tJNCrWN9ikvxyeySTtwUct2I+1iul6gqzgLtmPL+VY1ZULqvyK3XqT07Axntru/vq29EjQ2W0Op5jjSJiMqPXbckarzny4i2+uv5DxwQEDVRiPWZdHeVrHpFheTWGVo1GILRv9z20d1hfPazMsNNY5XCt0jiL9gpk33SNFOgZD0Y9Ap+NNnRgDNlpAlU/MGXZ11/elQD2Ng9dE/wBTH8t+hrlCXN/rdudLf7+Lwjx/qZ8PJtjCbr7TjjUXxr5LiniWFPIpIUeHXw4tZKGWmsfc1lvRre1ekrbehfPQD4ZZOfF4XFNQr5PMY9myvzFa75ynj4IzBMsEkLd3kmsyf8G0qyVIJfikrPFbMBIY5EUlqZJ546kzNWZVEkdR5pQPjYsVZWROoJi7F2UkS94w/wAbryCO0515tmSWXsfmrjmNmJGlr85EmyGYW2twTbTMQblkm1w1GX70IFYRbePMBVyTSgvHFCeIOY2xEHwrXMXE/wDCPieStZVcRPkJoalDKVMbZStk7FL4aGcyUcNNZrSfxZaxnjWJgLMvzCOWv19ybLhbByMEdc2ooEMstSxZjeSES6lqQuZWEREvyLGxYu4T8wOwzF6a/U8s+RRv55yOcLTyJ5SZTlvOQrMOP7LMLVx76dX2445quiLLcyvffUky4qqgkqAPUyYTbABGyyjDNbko4m7PRybRxQXMJasVpLUFx64sS41pK8rg3IVZhDHMleazGsxrRyiKQr5M9uxX/kTRxTRgl4541kVZ4ElKCWMS6JViod1UsqHpshyoN9eMuKgs2FUxT+cqRBfPF4Pa4TYUUwRte5Wqxnk5xWtazxarGqTsRyO8CYgpzLCZ2BVFkEPftoD2P6dnQYgkEEA/lfw3MF5VkbWg2vu6nt2+79n1o9df1D02hv8AHJV+ngn3T1D8c0rPbRkSXOvCsRFcVjK6qsjC79mtYNjztEo0cnkqNL2Ts1vjs30/pmz5ZhXEZCRWZZySHIDQQSyEDYGipKkb9KNa3rkN5ZMsHj2RBP3PEkI0R+JJEUjX93XYZQN60f8AmG7rk/CIn9uusR+B+uULx0446ccdOOOnHHTjjpxzpNIBkqguY5BjKwtXPa4ZfH2nf9sRUQnmit8PwvdXIrU/VU/HWPZQyQyIANNFKp3r/mjYD8+vyR/96Hvn3GSssTD/AJXVv9wykf5P4Pr8H98pskwbSROprEUjxrYdJPhGhEZ2kEmEmgPGmIURX9gtjCKJjHPRHJIE/wAUYjmdcdXpYaxylGXSyLeOyCEPVHlPXttW6n0DtuoJ2CVILX4UeVaVhB/VCCGGyezIo6g+1JYg/gDXsNorrlaXrD3O5dWXmbS0JT0U3YZuspRvzlHcBtrSlqZullU1xB0c2BTXOav5bqauuIk5TNWMkn2IloZvwnxd9IKNCWeGtDJ80UcU8q3blCVKkodLNmpYoQy2I7cKt2rhVQyStKvyRlVkGyYuETiLtKTNGJnIZIpUVg6JCsokBQRudg9ywXYJQhd8ot3/ACxyV6VNhv8A0wAxGgtcpyHpZUvYVUiyxFrf6eJqySZ9JU5CZW0c+hp5BIlhRZiTHKXRhjBqaplCbNiDGczGqeDeM/VPGYH6mHL4+DJ+N1QcVYNfLV6ONs42Rlu2snBPbrZCym4LVyCVoqzyPPLNcN1Wbr+zZi7gZJcL/DmevcciYiSF7E4tD/hpESjRhm7wxBSZCgiQwCOToXpSxPLPIWI9RdHyLVV9pbbuNcfbJefisr6++svkVyUVzFKja+S2LYwgFY+LLJTe6kitZKayasG0U/RnlPh/jnkn09u+O22rwYaajFJHbeWz8EU0csVqKVpK1mO08DzELLEs5kaCYxoY1ZCK2xWTv0PJIb6JLZs/NJE8SqpeRejxGDUkLIsoVNK5RlVolMgbensP9OnJ7efcVyLHsePtjqlxgqiznaMOvjhpKLP39td2Wpow0ESDIFopGz0B4opxFp5Umoi/FuImcsiU8d4KF808TXwXP4GxTz+IxEeaSxTXFriUa3lsrjsdXq4u7LmHRJqP+k4+KRFElmtHZJkia6DPJ0sjEZRsvSsGSC1OYX+T5nsOVSOeZ5pYujfKZWnkY9mBl6dVb4XVI1XZz9BeiNr/AE2cXX8+S2fZgz03O/eE+X5WEXM3VjSwJgXWcaPZFCSFEiIhJ0cE6S0HyLEIZ5DIPOvSO9h2YyRmX4p/jYwdo2mhSV+4qvNUeQyMUkMEskRIbpK66Y4j10jmkQdSBLoBV0umGwgJCsAB7H2r+T9q71yyv0SRG3nqcmWbHe4KgxF2xXeLnIw3uwYStRy9u/Y1lK7p+XoqIivVEb5WD9Mow2eiBX3Dj7dliAfRmZIwAT+G9n1o6XaDexvTfPJOmF6ga+a5Co/uFRWb9neiFA3/AHI2OXW9dE8pnjpxx0446ccdOOOnHHTjn4KxCDIxURUexzFRfwi+TVb2VezuyKi9lXsvZO/4X9OvxhsEf7f9/Xv/AB745SxrNXGyuz/hKfVXAvu2s09RAuGjr0pEkRfuVqgSvfPbLZJOGN8OMBIinIViORixBvOLjby6hMc9m0QMRBaleSNFZjpnUvJ1AI+0fH92x6Hr1650JhZ4f9Kx8nePq9aBtkhX/Ggg+8eh72PZJJbRJ5Fr1fV84HGIN5UZkG0PxfpqbkCzyBlmKHU5mpkjdrKxI0CVFJZyRUvuz6+tkHSslT4ARWTDwfdAavr+PmzlG/glyc+KmyNOetRycaCSfH3XidYJovlDiMtIyxSyIolRJO0ZDqhXase615jJ0V4yNSIQSGi2rEsPXcEBtBwF317EDZGtz9S7cVkPj7YoTg/j3NM5IfxRuuLYdNLrt9Ycf5XWUKR7F9NpcbNi5jOO1k2vr4ZM5LqJs+yso9vIoL20oIteYXt/8f6N2XK4VD5lmsoPGo/JsH5RJdr2cLWzeQp3HaKK1QysZsXWpC1ZMF+CdK8cJjSapHZknDfPmTLHjrKPThQzmA0x1E7V0clGZZIn+KOWRo0UxEEuVaUF4zAU1+OS8L6nF4xrtPoKaZGx9neW+Sj0zFzcfVDsMMGO+zg3VXFgi20UFVFcN9mW38YcOIWMQ4mxR10x/WOJ8j8Cl8lt4mjertmalKplZZjJe/0l62Unlgqy1bsznCym3YMscIqyl5HaSKHs/dBVGSxfki4yK09V2pvNJB8XSL+Sv8aNHYSQpH/KESIEI7gqvVSVAUHk/PT5sstnOMsjPhYuZX8ozKrJXnGVhiNKCjvc1f5Sw+23syoy15XBzmt5O0JG09ibLy9Ba2ZmWUT4ldJrZZgQqo80wmUzGet1P9Vjt+NizlaOfxeVx4vLmamUjWbG1Z8hWkN7FYGu38iulqCrHTQxPA06soZ9/wABNHHQqlo/496aGOSCaFzAYnhJFmT4pQIZrWgsksZeTozH5FCkoNsf00Dfw1wzg+O9VNm2esymPkydkSU18m6vNLKe+801tFWMwLLN0jRXMxJk8AfinkFRP5ar4thrNeCRpjj4Yq1KtAkdOtEjJFDTqoI4IYY3d5PjgiVIYx2coo6MzFRvIZZZZFkYlmsWUT5WbUavID1Ex/EZcqxVHIdkUlR0BbloP0u58baaLkXexaydUxDZ6HEjxLMHx56EstDONJPIGj3tYsltaAg0V/dUVyuRPz23z6MWBfv5q/0kWOOpXroJIyjDdn39hJIBMXZfe9EbAPrmnfVim+Lix+OeWGWT+RJMzwSLJGQIAOgZQP6GfT/nTL69H3cx10RylOOnHHTjjpxx0446ccdOOcO/pd2/Xsv+f2/z+P8Anr8P4P69cc12/qEbOgyQPULU67M21zS1GnztmdKm1kUE1rLadnVCSpuK+TGm1NtBFaQLmHIZJT33veR7TvbJYvL/AJ+1fGeS5nJM8pRTFHZhhVVnPzxFhLGXJVow6s2jpQxCkMPzf3gNS1la+DoQPAkthLJgkmUvEGriVmSaMI3ZXCFG0rN1Ol6swdMccN88D5LrvszKicOpg1UUEewvpflcSYoxIETrgEhFZJlEa1ozSxvcKW/yI5XITqr78Fa/Ddv1BYqmBgVWwkaNISOySCJSXhDdj1k0q7JdT1HN5uYyXDvBFPPBO8jkMKgd0Q9urLHJ1UHr+f0VGhoHYFTvrC9OUzjmx5H2/EAeIy5vb4C+xmpyXKVLEsoOfHb2a2snT4u5tLGtjxrWF5ymQqqwtauOBjY0CHdV0ETQi+qmPoeQxYpslbzmKs4XMw5mGbDZKWjFkbFOMLHVyYCkNTsx/EsqJFJp2lnSB5SVbzeewHmjrQxW5bVd6bfPAszxwyudiAKB2ljYEh39yBhGzCNevKKOFLv1U4znKzu+NeH6jXwLEsuiAe00Fdus4PC2za479M/W3+2aOx0BryNfWNnVmtI9m8lzHpbjTS6qhgBbYnmXhfhvmvitXEZjyOxWWCarl3mwrJi5XvwSyyJjf4mPo/DHTjhenDDNHAyRyVWtQ1YbM8r8gsfY8hweSmsrijqWWWoI7aySiKmYYQ1kPPMZGsNKJZJIG6GSOZY3meKNY1uI9KPpU1lLS4XV+oPU549jx1aXey48xtP3vcHgNdrbOztbrXNs9G37td63xtpMCrIY0atoYqI+CKfOI2xdGD/QMdlcjYwdKSS1lKWMxuSyMxaKe7QxNWvVoQtHGywpDGsAld1HaWWZi7DfrOL25asNeQKOs0xEcbM7JPYklknWFyWkAeRyCVLMx/WiVawXjXexbLm1kPjSrncgzijj13InINyRR5zIZiK98klLn0juBENayT9nqjeyEOIbHNlsY8otZntQyZKQU0a45+OO3YM7NSoV0lMjVoTEFRpiSzFANvOyCSVugCbRJjJ4PHYzlZosZDCzyYvGQQlrmRvSRiAW7SyAyLCqhQ0rFFSNftVTsPev9NgJJcfnS4I1Ghbrs9Rw2tc1zUjxKR9k9yeKIrUK+1aVqd1arHMcxfFU66A+kFZVo5ez9pklsV43YHZJEby+/wC2vkAAGgNet/qgPqVIf5WLhII61pZT2Gj2aQJ+y35+PZ9n2fyfybQerk5WXHTjjpxx0446ccdOOOnHHT/xx/tv/H9/8f7818fqd1i13LO7p7rJLpMZynx1xjY3AvuBKsw6im1xMPubatkew9H2VBHvsbaBJHeWUN4BKaEWI0phc6/UbGRWvJLlacMkWSxVeSAkEbs1gEUIxABYSqiMPuC/KXdfjBDXd4JesVsJjr9KQJbw2UvIQVDDrZUTokq7+2OaJrARiApaPoNlhqKnKHGHE3p4zi6wPJukw6wosWkqZAHhnllmevhEG6tf7T5rnvb86UqqRGv+SRWoMjmJzw+FlgtHIV/IcniY4utRpZpIrNAs8pCRyxzwsGLurOAju6r3MKFSyi7KPkFvPL/px8eoZh5S9ySusUtez0SNfmZZY2AQqrBN7VWd4+5DhTyvL1SenFd3TRNNzD6m5cjDSGRpUP2oVXRscByhJGYIaHWunyHCG2NHkGgy3wnqxHqdiP8AKQMHkouQ1mt1Zq0DEWEFVKkRj/KOrxP0YNGm1YBW1va75K4rPYSrHMMX43LDkWBWOT+RNblVux2oDxGWMdv64h8aufYZW98rGpeIeP8AKbCc/jOs5P5OiXI4METFhLn65rWTYxXTpmmaCvbMqyuEsZXQIH+lhJBCzHIFO2zGKIQoJBNIeisYq0rwrIQ3ckTu0fSNmG3ZS3cDr7J1z1nyV+31N2TF45YndzJMqzS/crppay/LuUAt1DlArgaK6LCyPC8N7zXEiE5Z1SUeWqIhTxMRlZhvcdVwf9bxMcr0Y1jPNovfOsuyOq/HCoe3m7DkpX8pMTesJBSZ1QVqby9ZmZlRflmVF9+yrKpcaDKhSPfIn/XcLg4umEom5knTRyGQhSX4z1B7xxPtgNaY7RVIH3F9kiVfDfIMyBoaPB57CxsRQzzhkVGSNGWNc1WNoos4mi2uiM9oTrN0DPYhVEWcjiJIQsshpDUb5Yoywq3Ew8OLWBXkkipw9is38WuHWxfnjjDrFGzhYqyuzSTsTIwVNFsfIYMXMfPnbmclvSxRq1656ev/ADp3iFXGVT2UgVkfvYnjUr0VY0jQgc2AvpU0mlD6a7ba6+onUl1ybyvv9ZGhWADxZA8yCeDPZVjQSGsMMDKamAgUc1rXNXzG323Nc7pr6PU7VfxaSzbhkgkvZK1MiSqVcwx9YIyAVX7CY2KHXtf7854+rNio/k0NKjPDYgxmKo1WlgcSI1h0axYJcEhm7y6J/PoA/jQsv6tflYcdOOOnHHTjjpxx0446ccdOOVn/AFIKINblMLyzKr9da03H9nYs08DHokic6gsonaTLPWovv28GE0RSzqmO0x5kbzNFA6whwyipb6y1ZkxlDLV47DNSklhdoSxWJZ0JSSRR7XRRxGw9FiQynSatD6YSrYyNvDO9WM5IQPEbZCK80UnRYkkY9Ed/lGnk6IuvulRWZhqTeorbQeQdjbak3IWw9RVMID5+Uzudzlhky0NS44Amrb2ZIhQK+JKjCciOlUVfOspUVqyCCGVxBLy5PLQyFNv5ds5OGNzNXxtGC1VdAzoGM7ugC+//ANBNMR7+zsy87A8fqX8OIYKmLq+PWZ1+K7lchZrW0mfUhSSnHHNLO6kDsqTSRxAsAzsQrH03L3PPGOn4a4qPccJMn31ac1XkuO7eZ71lRXEKI6vJLmy5hWxgUZ47vkCtbEYWyQveNsdDtUfU3H8tmSvZkjVWnCiGnJGy2IREpRF6O7aWNV2spCluwAA/A1mLFZCnkMtFDlAlcDtfy0H/AOLYSVu+kMaBnk23VoY3foV+5iN7gPxhK5ax95teYtoKdBpyx59suHDdDLBny3+Xwowa4MsyRhwlawEAYmxxjG9vk10VWCSZWNjPPNYVEWVOwhDsWRURddVI+zp00o/ZJ3v9/mTkxc9alicY62rCypGbvxKrHsW+XvJ1BlMjEsSVOgiferduWk+lqZc22dNvb60rXaPax0siskm94NPWMcRK2iq4o1VgUht/mmC3yeSQRzSIpWqFvzXmkdAGYRh5FdIlBEccf4iCjadSqdXd+2jKX/IAB1fPx1oLAo14pGSmohaVl6vYmI7zTTONuT3YpH1HRIQddVYMPQVeA5H3W61ulqr1F0E6Itdbz6sDmProtZLCLP5iO2WrizZll7ASzhsIo5HdgpCNita12tTR5KbyKSzUmWORlWP5YULlREwFWqSVHeSSTTTFSI27nZKa5tkeRweP8bq1LlR5aqs0kcMrhGlmsozWb2lbSJX7aiI7OrgNGDIQw3E+A8hLwXDXGeSsPn/cabF0ALX7oQZbFLg8Ecu2ZNeIYh++OwkSBvaMbBj8UENqMY1XdzeP1pKeGxlebv8ANHRg+cSL1kEzr3k7Ab6nszArs9SCPyDziXNWY7uYyduEIIJrthq6xb+MQfIwiC70SAmgCRsj2fZO8v8AUzyM46ccdOOOnHHTjjpxx0446ccxXzLxbVcx4K5wdyc0eBbiY0rwlkhVyjd5NG98Q0eSNjl7Kh4xxSoxGjkRyNKNq9a55VgB5Jh7GMNlqpcxyRyqoZfkiYOqTKdF4HI6uisjDfdW7KByXwWWfCZKHIxxJK0QYdX1+GVlJUMrL2G/6WBRxtHHXlTnO/oc5C/hKbS4C7Pl07PAljXZYeoK+CUKimCgzq+bVXMWxlsXzHLnvnIKS1SGAZzu7eb73028lwU0luvNPajT5uorV2uKSVLhoyrxvE2iCBKrqGHbZcaF04r6gYO7LELtfuSyaWxdasiuGDH5lZZUkU6CuiNGGAA2i+ua8vKH03NDgbG31tvmYvKNjW2MWTUwthqdVmrK7lFmMPNlaCFIh/GWLBIR8hsCLLUU1oCheIjTuE+tYqBhuM06XKVwuxEmVS3EWkDq7d/l0oJHYx9t9ZAo6OSBy72+oEV2nDTieGtWaN45UxsVOVYIRGyRLCyN37uR1kcIhRHMg10IGO7LjfS3tqTGW/GlDGrbaqkpIsI88w6USMRRFgMkx4yHiuj9xyQPQTPa8WPb7j+6NlBOIZyJLD2flQmSQxN16t9hUESFtkgFAPwdHe/Q11JU+JLkVhIXgmHSElTOHUhhIVYhWB2CSH9n0f3zPPpW4s5jozG44oskC0rakkworrNxrndSG2kx4yRYyDgwoyMGwZFI8DAsEFjGucqOcTxyMfQz80616+KebHhZjDZrtPankd23ECjQrsqWJkHRIwoVQ4H3c/fIsr41LF/qU+UMeRkeuktKf+PVhWCPcUrRy7fbHoOjkl22SUK7VrgOAvps806TYZXS8hae1x2JgW4NFeVZYsSksb+cFjCMHDo6h4iDcs1zpIrG+/ngRrFcxTDRhbD8b+k/kVnJUsnm8nNWr1pVnaFYIqvynqoEaVo3+RVVQQjzSswY9n+UqQ1deRfVPx+DHW8bgsPCbk8X8aG6881p68QZ27/LOHQP+isMaqqFlYHspTYbROyf2791X/dfyv7J3/37ddOj8D/73/8Afv8A6/3PvnO3/n/P+P8Az/f+5/POev3jjpxx0446ccdOOOnHHTjjpxx0447J+v7/AN/36cc+Y8OJKa5siNHOj07OQwBGRyf2chGORyf4VFTrykgikGnjjYbJIeNHB3/cMD+/fPoMy+1ZlI/BViCPz7B/R9n9c6Ncbk1Ipf4Yzvuqvk4i0dYr1d+qr5fG791X9V7qv6/nuvfrwGPpKewqVFOtErWhBPvf/wCp17/6/v8A2+/nn/AnmA/Q+WQ6979bb+/vnegiRYrUbGjR47URG9gBGFOyfhERBtaiInb8In4RPx1lIioNKAB+gFVQB/YBQBrnmWZvbMWJ9ksSST/c/wCefR2//f8A3+/X1z846ccdOOflyqid0Tv+U/47/le379k/b9+vwnX/AL+P88f+/wDX/AP4B/yfX9+Q1lepzcZmy1UXXcHbeTHr7i5jUBcNT6XSoaspZtlVkPbnJQRhrKny4DJlV9lFYRZ1NI+eMiEYOOfWmz1mvJMtrFW2USypEakU856QyPExlJiUAyMgaH4wyPF2k7D/AIYlv6H6PeOZiliJsF9R/HK9ifH42bKR+TZHD4oC5kqlO9HDjo48pMRHXgtNBcXJS1ZoMjGtOToXeWDJfE/P9PydCru+d09LazLm7oDRzUVzJrI87PhiunlPcpXhhwY5DmNGjCsnRpqSIxo0qOCSNwkzsdmIb6oRFNG7ySxAfDKyBoAvyM0vxqiDuxQK5Vw6srKGBA1Dzj6YZDw6xaIyuFyNGDH4zJpImToQ3nr5d5v4kKY9rTz2rEUMcU1qSiJ6nxzxzVpp4CJT/9k=</t>
+  </si>
+  <si>
+    <t>Choco ngũ cốc kem café</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAICAgMBAQAAAAAAAAAAAAgJBwoBBgIDBQsE/8QAMRAAAQQCAQMDBAEDAwUAAAAAAwECBAUGBwAREhMIFCEJFSJBMRYjkSRRYQpCcYHw/8QAHQEBAAIDAQEBAQAAAAAAAAAAAAYHBAUIAQMCCf/EADkRAAICAQQBAwIEAwcCBwAAAAECAwQRAAUSIQYTIjEHQRQyUWEIFSMWM0JxgZHwJFIlcqGxssHR/9oADAMBAAIRAxEAPwDf440040040040040040040040040040040040040040040040040040040040040040040040040040040040040040040040040054SAMn4Hf+3f/tprHmR7Pw/GLWFSW1i6PPsHIMCNErxtK74GIpEd/beV6tENFTtUz2Dc5rnfEH3v6ieJ7DvNTx7c90Stul9HavDxLgcF5ASMjf02fpUVivJ2VCyE5G7o+O7vuVKbcKdR5asGObghGIzglFccnCgMWwpIVScEYzTbsb61WFU+UZDiOE4GafaYvazoFmKxlT7GexKua2FYjm11NCELH5IylH4mWs2QrR+UphNbHInORtx/i38zu7gtfxX6VSrtse4rVs3993SU2/w4naOSZaFavXSvIqRSOUlsziFmCSsrqEPXvjX8HV/dKEd295ULks+2Leiq7DUilQNPDzrRrYllla0GZhGzx1YizlPSVwTIP5/UF9WbYWPYK7P9B6yxPJaXDgBs9owspsri5y+up3zJlf8AcscxrESMDJqjSovdFt5FpIZJjPK5kcB4yCkTLcP4kbu4XFqeP0Km1CpHCu6/2ho3JLK3XeNXrQCK1VqVoFLKWezLJZMLrMRFGFZob4h/Dtt1vyzb/HfMfMItmr3dzFSa9XVEO31ypLmzHbjLJdBHpfhZY4o437Ly4caiVp76vfrOyCHke2MywTVlbiOR5BkOBYRq7OXXmtDY5cwK2NNp8xkXhKexyS1pHzyEqLqlek64mDd72jaR0GSrtFd/i323xzyq5se+hdyU+OtvKLsddbMNCb1CteAtBM88wsJHMw9SdQSAjSQsEM13fUX+FX6eU4auw+CXd3tbptH4KTc/KZtzr7jBvcVl2E8b04mg2/bnjh4z1nphlQnE6uHAMrPSh9Xuzzra+49Y7+xKFAscFroVrBl6ur5VnTQSx4QXS6Y5LazdKOS/DIi3uPe7sFtfEeRBmwozIamWwfFf4hqu5bZLve+bVcj227GlvaDtdVlmFcLKJYrEF6xFK8iyRFS8ReMSFh/TiUOYV9av4WfGvEPFvp9v3098ufd7G+x2a2/UfIpYalxbaMuLlSCpX4VKlaYzU7EM3qkiOGWOxI8pDWR6r9dPp72zfQsZqcnLjt7aoqUtbmTa6hkW52RizCQoSraSwusGxI8qWyEUopB4kSXIjsKOOVWzvwb62eH+ebhNte2pu+33Iow6R7zTiqw2RkBhBaisWK7SoDyEMkscsyZeBJQCRzH5R9L/AC3xOlX3HcakU9C1Z/CQ26DTTxGfiW4EyV4WJ4qThFfGVBwzKpkPge0dc7SiW8/W+c4nnUKguZeO3cvE7+svo9TewFRJlRYErZMhsSwj9WqSMbsejXNc1HNVF5bFW7Uuo0lOzXtIjtG7V5o5lSRfzIzRswDD9M9/bI1E948f33x6aCvv+zbpss9qtHcrQ7pRs0ZLFSb+6swpZjjaWB8HjKgKEg4Ou+cydajTjTTjTTjTTjTTjTXCqiIqqqIiIqqq/wAIifKqv/CJxpqDfq63fsXCqCJX6TqJN5lxG3RCzGjb9hpz19as2E7I5ivasWsO4RxqvajJMlARmHa9zkTlf+Iv6h/UDx6pslP6YGCTcTfnl3+wwhkO30K8MciExSEPN6jeqohh98kgiBDxiRTd/wBIfB/G9/vz2fNp2q7SqVxVgX1Fs32ksCOVa3AewqpQGZ/ZGjs2C3BWpBt9d7O9Xs7Y2ytr7vswSMQrocai1fSV2f6713aWIqx0+6Zc7AHNY6769/hBXxqyDRRlL7ifIKGb5IPHXhO4v5Ta3Lz3zLft5l8ijvSTh/I9smpVHqwBfTHjsFO01ahFXkclZbsU81yXgJI2jLPHf48U2bw3ybx+hc2w7r4pNPDLYq7XuVWe7DXkmaNYr9VAplLRsvOKCWvK0RmV2eULHrXw23lu/wDb9xsmnxzVuY1ercfxyfI2lfV2MSLLI4FljrJXiLAvYMhJGSZTcwngqYdaGdaslQpEmTNkSGRQI6/NtfbXZbW8bpRUWrSTUorVyCvFYWZoGEslgoxjSaQEy2Cp9yRxkKyMNdu+S/U/wTwXZ9tf6V2asHkD1Y66y0KEkQq1yZk/A3qBij4w7WLEsldOYkjsSpLEzhZCJY6E9QvqOvMYotAZ16VZmlfTDkeIQwk2JiuNZjiDg4hgMiGmN1ue5hCeaXMJb4/HkeC6o5QzQwWLYg5UC1PPZDr/AHmn9Mm3OW3sP1H23ctxh3qa7ufiVzd9qno7ruN/1Yrc5oxCKezPTmYwNFclsxmNoCiIiRMOO902O7an3C7uGyvcvbu1qGzeWCWW3DJOwtOGkJlhC3QzWAY5AwkWcufVBxM3eWYYXpLAKK5iRYdOPLNCSclssVtrXvh4YaHkNzSNSug206xPItZKCh2bJp0mXk+xMhZEoonAGOn9z+lFPffLtru7Y0NDY12uK9uc1FYoOW7sbVeHaqccZLMFgCOyyq0ClpG4mUw8Ohf4fPFo/OKl/YZ/xW2VNg8lMMUlSOR7FrbJ4obLWJLBVgiPY9VnklcRRpzRVV2kZqy/RbrXNs1qd7ba1rm20skzybmWRSzZvb5dX4fqyDBsYT51RrZmFNyhwMrvqmKWQB2SxqUEqvmFgs7oBoEOOS9POfMds8Vr+MbBumw7FS8dh27bqtQLYis+QNcr+iljdVUVYJo68zR5Cz3uEx/ExiJpGQ6qrfNin8Q+sNz8VNd+oOybduEdiSpKf5dA+2l5gmwWa4Nuus22nDzPEGjmDVyyKHkOvgW1BtW0qLbYmXbdw3CKxDW+HWhazGs6zTGrqvgy4U4MY8946iLkBMiYFIs0bi1oKGPKY89hOMyQBnm2fUnxijuVejDtG67nZs15Wq03rxbbK87xWApjMMsroEdkPBYXaySsgUqzkXd9RfPP7V+KNs3j2yDx25tdnbNy2i++57ZerbEK9ivLLYipGGCOGwFimjSVHLK8kheNCkSi5H0Lblg+ivYu4pOoplBndfutdeXNjq6PBuBUuFlogTxSY2E2dbYTHFrjSMglqewuQDBSQ48eukxAx68JZXy+nn158qobZNR8R2D+0G407EcW8rvsLVJtyhqSvG9iom22Ikp8UlSs9iWGUCSON5a4i5leefrT45d+pNTxh/PtwG2DZotyi2reqbiazMLpruINzS1GBOGNIzwpVmWSy0kuJDMGU7SOk934bvDC6XLMXlhFIsa6NMscfLPhy7SikFRzTwpjob3gOgTCKwUuMro8kbUIzsXuGzv/AMX8jr+SbTR3GGP8PNZqwT2aDTRyz0JZE/qQTMmFf05AUWRFAkADcRk6/n1v+xW/H9ytbfYzNHBZmhhuoki17aRsQs0RdQwDrg+m+HQ5VvjJzLySa0unGmnGmnGmnGmvTJAyUA0civQZxvE9RvcMiNe1WqrCMVHjenXqx7VRzXIjkX454w5AjJGesgkEZGMgjsEZ6Iwc/fXoOCDgHBBwRkdHPYPRB+CDkEaqm2/OvcB2fb1kmdEKwxPewGX0+j7JkGShiBL57QEEDTtY/sfHFOiyHuax8gpEb2P4y+oVSntnmd9b22zmWbnYjspeqSraglUuJWrXgkYl9MgNwmjd3UGQIoy/Snh7PufjNSWC4qrDivLGK1uOWGWJinpiatzJjVwDyeKcGMjjGQQU6LJzqZIiCJba/trCOJWKw2OVgz1D4zHdfzkV+QXbzNUrlcokhJDTv7VaVyp0hU9XY7UcTT1NygMMqFmi26N42wCQ0j09xnJyVBUhTGVYKQw4hZNF/MYJGWvcpuZI27nucZQ5x0Fs1oDn9QWEihfaVOS0ec53VhNYstkrXwagbjdzxWECeFSqhUKjiouLgj/k9GIpTK17HtRqOJ2966m5t+wusoh3KKuJBxaPcat9AwBbCOs1GWEoA2AmCBjAIAI1vaL70BGJFezJGAVkq2apKMV4KyFLDFCgJAHJsgdhT0Ik5lubVttkMO4sMYhnWFL9wsV2VW0GsIZRIBEnVUIkQMqCUKISVCkR3w5JxslSI7St7+V/J9OfE3trajg8K5s4kXlRniAlCqglMaV4ULqFXsIAFBwoOMTKp5Bv1Wo1dX3qBJAwYqtV5GjOWx6ruz889K2TJGPYrcQBrDmw91+m/Ka09LleptGS6sTTeINzi6WomIcj3P8AaShVkggfMp3uKgTs7le7vYjkRUnlOjuEYCxb747XZQh516lrkOOApjZKZKkYBJHA+0jGOhiUt83nZ3d9rs+WUTP1MtTcXprKMlj68aWUjkDMAQsmVLAE4ydYWHm3pjHAqaPCarWGvKuvnNmDp9ZRc1w2NKM9yGdKtIVDGjxroimXo508Tiqqle5zxqiLnbr4pT8jnoXd93nx6/YoFPw01jarMxURsHXkksbNxVwfaxHLvIAbrCg8k3qkL/pVN/kG4M7WJLFynYmdpAYy6zSSySRlgQHKvyxg/IGJLUezI+cNDW1CQj1cBjGDjVuEUwqgAHL4lYEEtRNa4rRL0KqD8ita97+nXt3S7NtNuyJ7W+etKuBzpbSlYJnIZQ4lQqXAySeAx8sp9rR59y3KpEY49qMSSdj8RuTTySEZPIpwcN3gcWZv0UEHX0K3C9VYdcXWZmoKRmS2sb/Vvp51TjlpP6GSWjZ8eBZXRe+VIAFhQBSMM6oxriP6dybvb6viuyiaT057ksi+5EFKB5Fj/KrSxrJN7mVQY42CuzBm79x197c/Kt3jr1pJVighLLH6zW7EcRI7dFlCwoy5PvOWU9AHJBvx+n7r2wi6tg7LySiHjNplZJZqTH4lsGyiwKJ6sGOdLJHrq/3FtaKwpDGmMLKBH8YEexHPV/S306rBtlg3I0k29bZeStVim9WNIC3UrkfmlnHuYuWY45fJzrnfzyy384moG4941OCz2ZIfSZpgCTHGpJKxRAhVCcV7IxhSDYVyxNQbTjTTjTTjTTjTTjTUA/WviJB1tLnUODTyFA99XatuhPfXmaiI+C+QRqFWI7xNMNsloDfA2jeNVcxec0fxBeMiapQ8nr02mnrc6lqSNjzCsGeBmj7VgoDoD7ePEZJ5A6u76Ob2Y7V7Y57DRx2FWzWUYwrKypMFbKYJzG/uJ++Me7Vc0WzoLIijuNKU1uTsd2WeJ5BWhXonc5VGhn10lpPxRU7E7nOVqqvTovOXa3lMEClLdESFAMMuVk9vRLY5Zbrr8rkYPWQdXvb2mUMJItyMIJBJnQsuPv7SrMAc4zxIyPsBrF+zK7D5VadgKDeOPvKxydK+/wAmmQxu6u/FBRskJFJ07XdqIJ7UciNRqN/jHvb/ABXEMVWFY3kcqVnmL5c9kOkhCs36jLAMcfI199upWI5VZrNKwFODwCrIQBjiS0a9nvsE56+T8Vu7Hr8ZjtOx+Y7bhN7UVWTYNs9yr0cva/yxZncrWKr17nORG/k5GoremJXmtsQ34Wg4B+VaPiPno/1Acd4GegR+2pRHEiqSSwJABCnkTkk4UAEZHQ+MHBGdQQzwmMNI5B7Dzs/R71RCQJjERque5X9o6piqi9qD6dVc5yPVrmqjFSU0jaIX/oKIz8nmpyR8ZxNnL99D9MADPWLOkQJJmsJjHQV2HeMnJjB6+4ycfGP1+Fr6DQzrUXS82BYKrxvajQWbEVO5FQnUaAXorVYnz2N6KqK1FRE5uHksKmDDSTr/AAsmcn5BBy4wR9mwevsCda8xxEnhJZkJJySp/QHr8pI/b/8ATq3nSNPhVZXIWdr2yyiQ/wATglyE4ewbWj7e1qWUsr3fmqPVGtXr0VP5ai8VLcUJZp68dmQleJUoFUA5IwVYlTke3Bxj51otwhllIWC09cDmG9rcm+MNhfg9fOf9DnUp6dT55eUWvMc1/ilGLI7eBVOBWKGRZEGaUzyudJHChxozhx1V5iNKZ7Y6EI1FVi9d1RkseQXa201aQEdyeOKT0MoViLgsWkaMRgAZGcMSMgH4B1FtI9np2Nzs3pHkqwS2FMr8gWSMlcR8iz5IB45UdAY762SsJxauwnEsexSpjsiwKGphVoAse4iNSMBgyOV71Vz3PIj3Oe5VV6r1VfnoncG00Idr26nt1dBHDTrxV0QEtx9NAGy57fLZ7wP2AGuRL9ybcLtq9YbnNamknduITJkYsPaMhcAgYHQ12nmx1iacaacaacaacaacaajD6w5/2bQWaZA6KyaHH2QbSVFd40ceEyYIE1onl/tsM2McjxOenYrmox34uVUg31H2kb34fu9DkUeSENG4x7ZEOULffhyIDgdlcjUv8EvfgPKNsnJwhkaKT/yOpzn7YBAJz1gf6GjXALrTmxEhXVBPqWLZIQPdU2y43eRjCMoTR5saDPiljy45HiG9JDDsVz2OCpAkER388918c3ja3linryy+ljkVjMkbxuCFkik93qIykH83LJKOF4lV7C/mUc8RaGcOUyHDcJOLDBZHU8mHEEYKt+UqUPYJ7vsbEoNFVHCPNr2vekZ6RyvyyLMQSFR5GPKy2FLcdgPxc9HuQTFREe5geiJoIKl9rBiNNpQxQdpKOTCMBuRQAAYOCE9vXEKCOZ/dK2lhQ/pxcTyYj8OQM81yE/KC5JLq79kH3BmyDX9nWJ2k2vJJbsu0skeY70OIePT4Twueqte90WK5vja57Wv7ZLkkI1qoNj3uYm3YTV5isu0GJUweIFgIo4kcgzMCQ3TZOSM9dAnUhqzQSKBHOgwMdkK4IHZ4Ywr/AD+gBJx+uq5toY5dVZyGLlMmSNHuRXvrK3yo0yvaMrC/j3M7mtRVEHuVPGPp3dreSLarEEriP8JCG45XjJL30S2Qz49qkk/BB/L1jS5DMqF1mcLyAJ9oGDn5BVu89Ag47wRjvXs0/isiwuRGdkFm7o5quGENfGepe9CPC5roj3L06ovY1HCVyK1z2PZ2O3M9mNAFNeOM4IwCxPHsAgljg5AAIGT1k/Yahq8ilz6jSAELjkAoyM5BjAzgH4zjo6tSxSposapW2N9MMsaPEJKI6xtTgG+OBiq7wgdIjiMRxGqMcZAkeR7hhaqq/o75142nlUJBI7M4AAVymABnPWAATlice3vPWNaey5X3JKAASG6RyWwwOCT9wBj9OJ5fOdZk9Euf1+z/AFh6srMcxuXVVNP7+yO+aAEJFEOMvuFJEa4plmte9g2qUv8Apka8bhtMrHcuL6a7LJ/abbzMFxDMZwULOjIq9KQ3EAAlvfgye4LjiNV/5/dSv4ruKmQPLPHHCe+lLP2wbBLEjooSFzk4+MbSCfwn/Kdf886zAA6HQ7/9e9cs6557ppxppxppxppxppxprCPqSpFyPQu2qVrWufNwTIUEjmeRPKKCQw1Vn7RHD+enRyfy1UciLzWbzEZtsuxjstWlwP1IAYf/AB6P2OPnWw2mb0Nyoy5xwsxEnOMAsAfsf11pE4vTQsfy+3kRIQQTJc1hJxAvKEcxYbUihKrHE9uwzRhexxhBYpmsI6QQ5hqguU9xZ2DxyvlITIIw4yE5EkjkcMVYg9HrJPWuu6Ecaqk0SDMqJI3EYEjrHkEgfLlSuT84wCPjXZNtWxnVDRMcbtOwEd3hV8hVcdVar3OC5yRRo9CqQ0hnYPtVXNaqvE2NRxhpHUFRhWkw3ELiMOzBcHBZskAfJOBg5xqURyiFFyrn1HEQKozEmTiFI6UhQeIZiQFHI561XzmFkSqSfJJYewEMRyIsiW+CBChAIcNpSIrWqr3hV53vejWEc5WiaxrRrIKskdnjEUE54orIYWckMOTKAueS9E4+AATnonWmuxvVLOCkQLOeTShMFes8uQC5x3k47wCRg6jJkuxxWTyQq7NQWHciK0AMqHJe8g0I3p0DKciNRHMRWoIbfctYhBFerHpu4dpihKv/AC70JGUguKPDo/ILPD2uDjkMYz8571op9zMvsN9JQCCqJbR2PYAwFlJLBuh9gDkHrrumpbe6LYIVckuAvK0HRUtLEYWsORyujva0/cxQoRgm+Iver/M8yFINWsxrlSgUwYIQAfaFgTHMHoklMZ6P6huzkkY1kwWLQ4j1JWDnll5m7Ugdg8/dkZ/YD5OrJ8UmyBVY7CxmSJAK2CplkS5p5DgNYMhHoOV52nikG1PI0cgHsUGxSBIWY3sTUQwkScYYgHZ8Ksapl2wOIJUJhixIXIYk4Absazp5AsfKRuMSB2LuSyqi9sRgMG48fnJILdkLy1bd9H+nDbeqGwtGIvbT4XayHJ071Y6Y1FD0enw0CGE9gFe4hXeNXK56o/x2d9NoTLvRkccRHBI+CO84GCCMA95GckdY+TqrPqhKY9jijBH9ayq45EAgDrIyQDgZOMYyPgYGtpjl965+04004004004004004018LKIH3XHbyt6K5J9TYxFa1URz/PCONGo5y9qdyu7fn4Xr0VWp+SfGxGJIZUPQaKRc/OOS4+Pv1nrX7iYrLE4/wyIxB6zxIOM/bvHfeNaIllXXOO7mzSvNKjJSxbqxhx4iwlHJjz4t3OYVxio5WliviPWOg1chGmEN7HOR70fydvaRQy2oTCY5Y7NgFiSY/SXIUBSOXIMBnrioZiDlRnsDY5Jp6lGQyK8MlOuy/AYSYUsfniMrgAAgkAFgpyNdS9Q2fxsDxlst7qONYXJ4tDi5cnvo2MY4bKbo7oNFCu7qY32tTWlVnurG2O1wQQxeLsYhRuZoKG3NdYsBYkSLnJajp1pLVtasK+o7168RDzy8Q6LEArSS4wTkKZHY3EURKOKBvSDV5JZhHE1mR1iSF3I/pe7tpMssaKxK8iDqoO/1+zPPT/lG9s73FBk5d/WVhPx+gvMOqg5IzGq4SxhQcKxu5l2GLDqgnpc0tHGrK/JrmyjYpUWsPJ4BrGzx1syXeptu8127xah4zYO3tta/it2r3p126K83vRr80CxXmsEWaVZI/wARTrQSW2ielMVS0kBv1nvbNd3a9vSfiFstJDUeuhsJWjbHpQQys9dQphmlZhHLMyQGZJ0YvDJDzGNjam2ZmFvVVeJ4bBs6ldh3txZ7GzSfJwnKYRbRxgzMVfT45ipqwgzSJlwjzippSkOwsetcjGVcSYbvtfkex0K9ltz3exFO2xU6tXYdrhj3ehKgCSi/Jdu3fVjeFPQnAeZwUnRrDu62ZIbs+6bHvF+xWhpUFlgj3W1Yk3bcLD7fdi4vJEKQrQQupSZ/UTIhRg4ZIwPUiizdoDIza5uMZPAtMkyXX1k3GIUiwtqHIEgwra6rZdteV1RdXMp57CXivkEGcISyXzYYJMqEED6ywWLqN347nLbimhoUt2gmtsIEv0vxL0oZkr1LlijVQGCtuDLJIszcZK44JI0jTRBpHtMp25aYgmuW9umSuqySV7LQJYkhM8sEFud2Ms1VHQmNP6L5kUIpiMhvZx4cVtbEIghG6QxtGQzTPEgyNJ5Op1c9woKAO5Wo15kVne0blb5G8gfEBx171YjLDB+eLDHYDDsH5+ej0DqduwdeSszKSrNkKcj5VmHSA5UE9lehnIIJvI+iTRNl7B3Nk6C6DhY/UV7CuRiO88uV5VRFEMY3NeHuI1WdGiG4YUG1ERG279MYudq/OQRwgSJe/wDvbORjII+esA44kDrGqY+rEwSvtlcEe+WRwB91RABgfPRwMnA/TptbGvLq1SWnGmnGmnGmnGmnGmnGmvF6I5qtX/uTt/Xx3fj1+UVP3+06L/C88YZBH6gj/cEd/wC+mtGH1FRExr1Rbipka9rB7Ev3x/G7zjCCTYyD9rRh7mdg1O5qsb3dG9qq5URBpyz5dWZN23AIAA0zsckggsxJLZznOR7cHOPt1rrHwqykuxbaHbmY63ADvDBTgY6wGGDx/wA+z8DUbvUBiOWZpeavp8ZnOkEynK5GNpAjmHBF7WXSSOkf75Jq70eLyHhDIIbKG17pVfJWKSANJccYixcbrt+2bduNu5H6MG10Zdxln4vNLmIxszrXWSE3EDLGgqh+MhdhLyiMnGSW6Fl5IZBP6htTRwxxlQIYkCOq5YhuDkl3Z++ggXDdtSB64dS7B1xtfZezyXuxKTAqfPrfXmTY+Xa9Db7IwOdsjHh5LNxirl+5bGtqPK0yBZ19Iq8bgwpP3KRVqCxMyZPjWd9M/I9o3zYNl2QLtd7drW0V98p2/wCQWquz7nBtVz8LHcngKS+hPt4giihisXJLa8Ypx6EQVGqjznbbm337m7m1ahoQW3267DFuccl+i1usk3pxNLKiulv1ubhIkT0mkRw7sziqcTouOS321fnKEnEhzo8BcTLdVltGfPrnjO6W60pK1g6ghHOjWYI0yWkiIyX7YkhomkW6pBJbQwSbevASQuwuivJAwjlV2eKOOd2eReIlhd4lCyCOVgWAxUSGOm5sw7nmRlnjhO3i1FYDyxBeTtYgj4QK2YZ4zIXKFhA3AFnnFpSDb0+GTx7GyS5qI1dfXZqnIruZZWerqq9LjLEn4qiYcSpmz8tyYp6X29jX3rqMsQj4MqzUw/tJqt8jmrz7xGdlo0Lc1inB+NpVBWr+SzVBufGHc2bcVeOrtVDjZlYy1ksF/TkrRtlbC2j46luttL/ze/bgUWZkhtWDJPsUMoqgyUyabxPZuW3aON3WU1mVWiml+YxsXYXeEga8xUts9B2S4jjr7L3ZBtECYlLDIYTnlf1/tymPYZUcjiPG9XKiKiOqqaIG3Z9NmdBYk4Y9+V9RwGUqMe8BWx9weiQATb0ZIrQGT2sYYywdsFJDGpYNzIyQSQfkEg/bA1svfQxpyF1VuDLyKwiW2bV1eA7Gr2kBBqmKrRkROx7Gkcq9GuenRyPV7lfy7PpjX4UL84GA1iOJeWf8ChmyPkMMn9skYOBqg/qvKX3TboQeQSq8hPIHIkYgEY6+wH+Q77zq9rlpaqvTjTTjTTjTTjTTjTTjTXDl6NVf9kVf8fP/AK/8/r9cf8/TTWkL9SFtVgP1Ac5gW2UwKAd/kkuxj1kwz0bcElQIoBMjjeBECnmlPkId5XB+4NitYLynQjOfPOKxG4bkfQLMGjZXBVVRADkkZyXJ4cVA9yB25ewK3RXgFn/wrbQZmWMiZWj5csyBgQAqrkIVZ1ZiAOZjUnsFYj78wZ2U6uyaHkWTQq0tVbizPGsjhxUrSYDKxeQHI8OtySe7yMscct4ceSKf2e77H+RjWy/Exa+pTxRXq7x1ucc0D1rteUJLFbhtxvWtxMjj0ysteVo+EmVYn0SCGOrQs15LG3XILVhE5MktaaMOkkTRMkkEh4HlyVo2IMQ5ggOqO2ENHnqUhV29o+SmrjRdT0OFY5gmw8sx7Pdjlus32FdwnT8MuZ+I3Oxx+e5n2FWGvyOqopmZOxqNJswieOyyfI3/AGuxPErFnxNtqhspJv8AY3q9uu1bba2fZVo7RsNCXjudGLdau2OscK1Z45aVi+tCO7KiF0WGrAxmp3yaCbexfX1RtVfa4qN+1BeumXcN1kSRqEz05LOfWZopROkPrmspaES5nmIWHUnQWDZfXWVHUWcfX2TYPV2krIrDLbIljPy+eK5dFDHj0yPLGgyqaMxKq6j1cs7C5KdY0IsqueySkrn8y3farVe3bqy75Q3m3Wjpw7VSRIdphaDnNPYtvIZZ4pZmMsEskMcibfEpnSK0oSSPx+H7TulOxXr2BtF/a600tuXcJXmbc5lnYQolUIqRyQQgwSejI4NkiOt6tYFlkXoLCjXlrionZAWdhFZRY7lmYRaRLygjQLw0KEyXgcqunJNqcjsMvrolc+7nw5YC0sNpEjBgR5cSG/R71eWM7hYn25Kt9btuhRtWFp2LF2kswlr7hHPF6VipXrTySLXgkR3mcLNIXdHlWV+P7fJO9GKC49imtarZuRxyWIIoLPpCKXb5oZWkjtvagWI2JV4iCINGoiiaFGu3ZTwbWlFYZINtnLkxI8pIRJJ0roA5AWnBDDDGRrWGCF7Rk8rWkd0IJrlCg3pWYJD5XLMWwCfknkRkn4yO1BOTj5JJJNqPxdCrEBl7kxgkA+7DYABDDv2lAMqMY61t+fRHxz7N6KK6yWEKB/UOwczmgjgcVQsgxJo4MJrFKvVXMELsJ29Gse1RIn9vnQf09hMew+oxLNPbnYscZPDjH9gOhxwP8sfbXMv1GmWTyOSJV4CvWhQL+gYFxjsnvOe/uT0NW+8nWoFpxppxppxppxppxppxprhU6oqf7oqf54+NNadX1nsXg0/rSWzPitblMa3rcFt58BwhOso4VIdpbGmb5BlkWccwoshtc8w2TnDM0aoR0djqL+oKmPdpj6jQiSuGJVS+SVXpxnGCD2QQY/zfBOb8+m5E2yqOCO0NvA59OoLSE8GGGAYZGOw5DJhj1qry5/rrJ7G8yTIKizFhtfFNMxDA7I0aoFOtK7sHVpLCVxIso02VIK+d9zjiroBRiiuGaSMCLVZl9NxBGojDdSWHB58pOLM4OOQUgcVC4A+eic6uZIBZrrYbjI6kn0ELcOIyqxnkCqurqCxJLFsA/HHVX2x8JzXaVkTKNoVVbgn2Ei/01URYkC1tKgojd7bNbJ72rHCFzWm6yDjAR6gLGrmMf3pKqW4jbIzBt9qV/wASQtpuxHKpyDEwYqXyPzcUBUgIXYFsxu7t/wDNcS7nUrxrB3U5oDJCyvnmrADDtgKCemGTxDYOoUF1Pr2tIOotbKuuauolTDU8KNPKVh3XiiZeslwAIRTslopkY08w7la8r0azyuUcubyPd3V5lkaKawkInkki4My1l4VvTZiVjEQwVEaqSQGcMwBEMi8W2heMTR+pFXM/oR+s8iZnJ9UyJgM/MFlIkZnAZlLEE5nBoSlq7B1dX1Na2qx+p7GjgRAtiDK5SNIqgGJHMY8zWNGq9ikCJVVV73N5C91nnsSmaeaWZ2ce9mZmZ+sBjnPFAO8YH6YHxN9rrw1YkihhWCMoFKhABGmcHIXoN1kYAP3YkfM67aDeYxR+WiRZiT7QtzcmmuYU5wMcijhRhhVpmMYgliiRo1IITU+UZ3c1CSK7D1FU8QqhQeAUqWdmAz7mJ+TnsZIxjWzdcBwsnEgZHsysgxxAf4KAL7gc5Z/j4wd4j6SdfIhfT59N8qYFgJt7iVhkE1rBuGiyLPIbUjnKxyuc1VYxi9Fcvb1RqdERE50h4SvHxrbjjAdZZMYIPvlYgkHsHHTddnvr41yv5zL6vlW7dg+nLHFkfH9OJFODk57yf9c/fVj3JXqJacaacaacaacaacaacaaca8Pwfv1rWg+u9paiBmGld5nxfJLYlkL+hre0pZSrEhyKSY+5onWUQXjkRmokgz2TAvkjOkVRSYzBh8y1T9R4JYlr3Yk/vIpq7yOokjQkYBI/MkjxclWQEgqGVwQM6tz6XziWexRdwWjaKzGnJkkkUMQ0aEHgyGRlkkQ8ShVHUsSQKF5N4Cjm5LaZnsOwI+es09PQWkI8euhQjdPt/sZSLJBHGKKNA+UEprWHfYOVGe7RDUXJh1/oV424IhMvNCztkFiACXL9luMmAI+PAZyddCxBkcrI8qFpG9vZdk9xDSKw4enl2DFBkuCXyVXECN05fgk486ie91lDmhdHcKBC99EfF7XtQryV3jjsjvR6O6CRrgvc5yI16kYm124TKBKpjTg3JeZ4vnoqqgjjlegQM5I++RnF3CWA/wBGVGdnBAU+8AZHZYEsQxPxkY/yJBhJLxnGqiYJ9HWtkhOSONyEIaW5Oqq1rCLM8jxME8aoqFYpWIxyvORO5eSSGaSyp5sOSKzkKMBzj8wxkd/HFTgfYZ1G5UiqEnJjDMo95J9ucgE49uBnOclh+YnvUl9XEyOcdaaoFAhx47mkkSFmAD0YNGo8h3gkjdHEzoq+FGqR6DankVXIjdTdJjZcRyHLAe1cj3MOvcMA46J+V7+fkZ9J450OZlQEZQdgtjOASuCVOMgHrIyc6nZIqIWZHxXH0Zd3JJdpTjgAx5yJKt7B0kMSM7q6RGjGCaUUb0PZE9hF6IaS442q0mFVjkM6LGvukkKYUKZMvkEBmYIpwc5Y4A77GFbKtSpHXZnbikKeoXlZ0iATDFyoV5Hwc4RR7zhQByyP0NPT9rWs09pPVmsaeuLU1+EYJjVCKuPMSxkRDxa0DpwpE9GDbNOk4kjzSmCAKQTuIIARuYNvUm11EpUKlaNSqQ1oUwzB25BcuS4wGPJj3xGcA/GAOQdytSXb9y3Iyu09iWTkoKjiXIQBSWwAgUD3sf177OYubDWFpxppxppxppxppxppxppxpqs/6smrLDZ/o9zJ+PYnZZhl2D2tDmWO11OSSlgP2M729wVARQyiy4a1EiU2cFIUtRAR01gUfFQjIb51Qa/sFgRxSSy15IZ0EQYyIgbhPIqr+bhA0jccEHBz18TTwC+lDyWqZZYoobMU1d/XwInYozwxsxZBHznWNQ/JccsDOSDpyPyOwn4+oLbE9gYpM7XBkVthRpkFUAr46ikr90jvmCL18igYOO4TkjleRzGqQjGcxGJzYkWNoJV9THMZhL5bIBGVUNxwT0Qp6wddZRPG1RJGSVcoMRho5/SwAMlyqsVyOjHxDDBZWHWq9tzxIgJFhNjVeHyFD/cWaeqkY60XaxWNYVk4IH+VBJ5F7ReBTNVWtc8aP5IacQBQPHMpcBkUSRuevsAActy6yDxP/aBgDTXLMmGKPD6aAryeJ0C5YkciCo7XB7XJz2SdQekEjFyJ0sw8Yr3uaoYw4VmkwUhj1G55jDCviaiIijZ4mKROnVFa3knhRkjChLLKo9xZMYK4wgIxj3dt85HwM9ajM8yHJaauJP8ACo5N0x9xcE4ww+MAnH7am1pOfEG8YHLTOGUDiFe0Es8hgxDTvdICRfFITqQbBCenVyvf3Nc3+dDdYGX0+ALYDt6kuSAX4KVwVU4YjkCQc4PyMa3FJT6Xq+sxA5KBFHkghQe3bIAbPWcjrAIz1aZ9ODVsbdvrM9PmH2mN5LsjH42Vsv8AMYuNSJdXQYlS42f7kM+QxIbHNqKuGoYiSQyyV75oiMr4hfdSBgJsPGNtW9vlGJ4JZYRZjeSNS+PRiJkaV5cgCBWTEi8ssVaMOHZVbUeYbq+3eObhKs8FedqkkcE0gSSSSZwsZijBBJmYMWT/AAx8lldCpLD9A1iJ2N6J0/FF6dOnT4/jp+kT+ET9J8J0ROdKD4H26Hx0P9vtrlf/AFz++Qc/vkdH/Mda8ue6acaacaacaacaacaacaacaa4c1HIqL0+f+Ov/AN+/888IyMZx+/8AzGvCM/8AB/8Aeopbb9Evpm3WSRMzjVtGt1J8jyZHjjpWJ3xDkRUdJlTsfPBHZH7VVqPt41giJ06J8J0i+6eF+N7u5lt7bCJ2OTZrlqtgnGMu8BjWU/f+qj+4lvk6le0ebeUbIqRUd3sfh0I41bAS1XUDOFRLKytEADgei8ZCgAYx3Wvtf6AXpG2d7ruzrd9MkxyPPHXJMcuYjnNa9o08UrGoZHjGhHojSmIRyKrXlc1VRY630u2RXEle5ukBU5T/AKhJOB77BKJ3+5BPfZPZ1Kl+rnkLR+jYp7VMhzyArPGWyc5JMkjA/PQIXvpRjUZnf9Lv6QpU5kux3RvAoxuRWirw4RVkREex6NWQyokL2/iqOagkR3cq9E/hcqL6f0o8g7luDrggKfQxj7dlWOf3677+dfCb6nblKBjbNuRgAOQEjDo5AKt0QOhgkjHX31LnVv0Afp8a4IAtnjmy9lKFwivj53sKWkE5R9eqvjYfX4rIQTlXq4K2BGvVPyVURqNyYfp/sEbrJMtu0ygriexhME5J4RRx55dZDMw6HXWsGx9SfJZldIZKlJX45NaueXt/L/fSSpkZOP6fH4BUjrVrWodC6Y0HQvxrTOssL1tSlc0kqJiVDCqX2BmoiJItZoRrPtpSIiIkqzlS5HT+SryVUtto7chjpVYayHGViRVJwSfc+Ob9nIDswU5KgZOYbd3LcNylM1+7Ytv3j1pC6qW/NwT8iZ6B4KpYABiQABlzmdrC04014uVUTqidflP8dflen76J+v3zwnH/AD4/fT/n+f7A/AP7nr9dQ1lepzOMZssqi5do7N5MevuLmNQFwanyXJUNWUs2yqyHtzkoIw1lT5cBkyq+yisIs6mke/GRCMHHPGm36zXkmW1tVtlEsqRGpFPOeEMjxMZSYlAMjIGh9MMjxcpOQ/piW/ofo945vFLaJti+o/jlexPt+2zbpH5NuOz7UBc3KpTvRw7dHHukxEdeC00FxdylqzQbjGtOTgXeWDJep9/0+zoVd1x3J6W1mXN3QGjmormTWR52PhiunlPcpXhhwY5DmNGjCsnRpqSIxo0qOCSNwkztu3iG+qERTRu8ksQHoysgaAL6jNL6aog5sUCuVcOrKyhgQIh5x9MNw8OsWiN12XcaMG37ZuaSJudCG89fd3m/CQpt7WnntWIoY4prUlET1PTnjmrTTwESn//Z</t>
+  </si>
+  <si>
+    <t>Trà xoài buởi hồng</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAICAgIDAAAAAAAAAAAAAAgJBwoCBgQFAQML/8QANRAAAQQCAQMDAwQBAgUFAAAAAQIDBAUGEQAHEiEIEzEUIkEJFTJRFiORQmFxgaEkJUPh8P/EAB4BAQABBAMBAQAAAAAAAAAAAAAIBQYHCQECBAMK/8QAPREAAgICAQMDAwMBBgQDCQAAAQIDBAURAAYSIQcTMRQiQQhRYTIVI1JxgZEWM0KhF7HwGCQlNGJygsHR/9oADAMBAAIRAxEAPwDf44444444444444458FQHyf8AYEn/AGGzzjY8/wAa3/qdD/1+B5PjzzjY/wC+vg/Ot/PwP/3+OcfcRsjflP8AIaPjf5PjwP8AmeN/jzv9tH/t48/5j52NfI47l8+R4BJ/AAHg7PwNfkHyPP7Hnra68pbddi3U21baOVFg7U2yK6bGnLq7Vhpl5+ssUxXXTBsWWZEd12DKDUptp9lxbQS6gq+cU0MxlEMscphkMMwjkRzFKoBaKQKSUkUEFkbTKGUkDY56J61mqK7Wq89ZbUCWqzWIZIVsVpGZY7EDSqomhkZHVJYyyOysqsSpA9mFpP51+PuBSd/1pQB59f8A+b/0/n9v9eecEH4O+cuOc8cccccccccccccccccccccccccccxR1H61dOulcR57LsigQpqYapkSkTKjfvVmO9LTLECG662lb0l1aUMF92O0v7l+57aFrTj/rT1P6J6Bib/iXPUaV16r2qmJ+oiOWyCqwRY6NIusksksjLHF3+2rMd9wVWYXN050f1F1XOIsLi7VqP3hFNcWGU0qx7e9msWFQqixx7dwgdgBrtLEA62nr+/UO6lda8ie6T9M2ZXTPHK23hPdPbavzybUZ3fZe0IM/H81vpeGy1/45jVS5Guon+Ivy5yrwvxH7JxtlztjQ+67/AFCnryZsf0tNZwWEpMliPItbkoZOSwESaC209SZ44PZcTQ/RK0zFikksysyhNnv6df03dJ9CYuDrnrIjrG9NVmHUOOl6chvdPY3DP79XJYKnFm4kXK5S2J6EozEUcYxwEy1UaSPc1dHU3rN67c9xeqwDqt6osvjx8eurFLq8bzHIsOg5FVXkOoQzCtreqchouKuJOXKXGtpipiFIdsw005Cr4wcxDn/XnN261DCSdWZSyrWSI3OQs1JZoZ/YjM1llKJYoCUytFZkeZSiW2WRViXcjuneg/074nMXupOlfSjGRtdx1dkhtYqhmmx16lPeaR61W4llq96av9OtinAtb25Vq/3i2Z5NYnnyepXSrHEY908zjPqnHEyY+T5aME6lP0sfKMuQw5XP5LJnwn2XbawejRExB9dXwZjTMGOH4SJLjgb61vUSHEVLVSpm8hWr1r8a3JsdlHrwZC9Irg24hCyNPtY+x5nUMo7RKocP2V2Cl0p1jkxez3TPT0l9o5cVik6g6US5ZxmKZksR48rOksdauDKkzLXlsVWllkeKdkU7l/h/r59bvT7CsdxTpb6g8hnH9uTf3k3P6DDeo1zHa0lodl9kUp1x8w4hLb9W2mElx2I3IlfTuuPPruSl+p7OY2pDTxXUVnugf/3hM1FXyFid1PaEgt2ZABKyaAhk1GxVGOyzu2FMn+n30Ozufy+R6r9PK1cmz/Z+Lh6ZyOX6epTSsG0z46hD2QrLMO8WSZfErRw7VERLKvSN+sL1byHIsQwH1H9OsSt4NhHbFr1i6dypOPNV8AxZDrd9kWEWbtg05Yqejtw7Kixicl1uRMZlV0V6Kh1kZX6a/Wf07FDB/wAb1UqREJ79/FJPNPFEoKz2JcbGk7TPWKk3K9JjLGjGSGFgoVo1+rH6N+mKONzHUHpt1Rk609eU/SdF9RwR35rU/vxRyUMdm6q1uyFVkeetfykCxyRQvHYnWUBnvBwf1C9GupF01jmE9QKDIbx2K7LFXCdkpmJZYQlx4rakxWO11Dag6WCr31Mhbzba221rTJzpT1g9NOt78GL6V6xwuZyVis9yLH1Z5RcNeJQ8rtBPDC6PGjK8kLATIm3KFAWEHs50F1j03Va9nOnshjqSyrD9XOkZgMjsVULJFJIGRmBUSr3Rd/bGXDsF5mfmSuWjxxxxxxxxxxxxxxxxxxzH3UyblNbidpPxNyIxOhw58p2VJaQ+qEzHgSXvrWorikNzTFWhL7kQONOyGm1NMq9xQBoufsWqmIyFqrPFVetSuWDalhNhKyw1pZPqDXBVrCw9vuvAhDyqhRNsQDUsPFVnyNSG5G80U1ivH7CSeyZu+ZFaIz6b2TICI0m7WEZbvYAKTzXV6n0ud9VrSzyCV1LxrOv3OElx+XDv4WOWr0z3W0Fw12T/AE0duRGiJEeGtpMduE0hpuO2Uo9p3UB1V0fmPUbqi11UPVroLrWvfoJBIa3UOO6fvGxLYUPK2N6gkqe3YrVgtev2vElQdrQxzNB2S7Eelc7g+jMdWxa9F9RdOy17DNGLGJs5WssXtElVt4iOR5EklJmkB73suzlnXassRsl9PvVZWUWFnAw2bdQ2/qQyYdlirrU2EX3BBbliPPQuY2G/p35sdpuMiUlLkdDiUvLIxxi/RX1OwuRvviel1ymNNi+kK4/qPCX2tVZGf6UzyVcpMPbYiGSdDEfe9toisaOxXNNH1i6HbDVaFzqAY2w4heT38dmYRXsBUNhoVkq90JVvcEMjM/Z3q/bI0YDdOZ6P9TqNxFk70lyXIJ7tYzAk1EjG4KaOuR7ZYU7Vlu/kpZfQNe08yz3BCloLDCVqKO0/ot6tsLMUHSedb3KUUaXLENOaeB5NGatHHFdk9uCAgpWl7goQuFrxGYlasfU70/vItf8A42xmNrx25LEdmvfuC5ZJbvQW/wD4bG8pbX97CzD+97GaaQxqWxrk/SLqZHYnQ6jpPe9kuxfksVaIC2YkaJLcTL9iQ6uewyHK+SGVNKDCu76GIQtxbfuq9FP0l9W51mW3031FTikjUSq6V1SVoX89vdaJMEwVWHchbuClnDDzc1D1U9OTPBLc64x7zRQxo9kyStI8sKmIPGgqM/bYiZu9Vk7VaaYdqoVVfJy3phn0vG6yE5j0i3dNVECmYcCrpEwZsJqI37Epy2lVcyM0pgCLIZadmxpUmG7NabDUoDlUk9IPUCXKT2B0zahJpVq4tWMhja8E08CQoJhUs2olrukKlHZUd5Jl95SyybFKw/qx0PWyNm2uW+mja3YfuK5O9LJWld9NGa0NmCWQyf31aQrG8EMixN2Sx6PQ4nT7qZXBtyW1iVSygI03k3UXDY74e0kJDiZN0+yuOpbMYlmXGkFXsNIdQ+33oV94fRjq9LENy3LgMY0E7WEa/wBVdOQxqxbuaUwvflkE6AFmcL2Ouw4YeOe+96q9E3PcjqRdQ5CRi3jH9IZpkeNtgoStWJi/bLKe4SKFDsYwpPdyWPQmxyPDM8xnKVeoKBX3UCwihlnGLKXkuRomvvqZECF+wRZGNzY0hTqoyIclxiI2044wGglY7bp6P9PanTfWmF6ji9WumsBk6mRWwY+mrVnN5iWWWRVMFVadV8cyTlzFNBPJ9O0cs0TosZVlw115mK/UXT2UxUPpZlLNKxWkHu5mtXw+LWJYwwsS/Xzx5GGWFUEiywq87FA+wygPt4YLGyuLj0ZrMpUSXc9y1LXEX7qG2CEe007I9mOl99OlF1aGUtpKg0hbqUBxW4ajHZjrxradZJgBsrr40Nd3aApYEH+n7QNBdgbOq289OS1I9FHSu3lO/wCT5PkDbaUjXz2k62VB2B3Hns55OOOOOOOOOOOOOOOOfRJjtymHozyQtp9p1h1B+FNvNqbcSR/SkKKT+dE6PPjPCtiGWCQK0c0UkUiMNqySo0bA/wAFWOxo7GwfB52RmR0kQlXR1dWHyCrBho/jyBzXSyPpRIqra6r40Yux4s+fEKA2lzxHluNpCvnZUGiHFBPcSnRO9nmiH1K9GHwGdy/9k1HnqQ3LieyqlwvZYb8dx0f6j5CneiRvzzZFguuEt0KM9iVY5p61aQuWKjbxKST/AIiO4FASwB8nXIydQsferZ7rTEKVDDrei40tYW0CkokFCAUEHtJLalEqSDogp5E3OQXMFltotiiCqv290sO5Rs9vcpB7WbzogD8nZ8HM/TWSrXqqixYq2CjnSSKrBhoNGWLBhoMNFRoE/JHzyG2YXFvUPSUNTpYeS46wpLz7qUOsf6iS4Sta/bkISUJWG0kubbUdaG74wdy5aSNmv3hG0aO3tXLHeHbsJUKsis8TnuO2Oo/Kju88yzQx2ItRRs1Sm0ZVX2Iovtk0pIAEf3o7eA5Ox9w/HImZhlOQMOokN2Ni2+FKVGcbkrL5Wk9vuuFLh9pC0k9qEAaGj48azFhUMqshszOgAEoaxY7QpAJVdy/cR8MxY7JI3rZF2VsXhyGT6Sn2gr3qsESqoYbCglfJH+f58+PJwLeX9/IWtmQLFXuPCQp5Up4rcB8nRUtSQlR2vt7SUHY0e7l80q1RgsrTpKVjMQSX+8VCCdA92ydeASSPjeyw81CKHFVwpX6VQB2dsUMSFQPCrpVGyNed7GvIPxvuWFU06zcYQmO7KceCUK92OJC1d6+8qSpYUpBRpCR2pUTskFHlPKDm7UETMqFUYPuJIW7f3UIFXQbu3vTEAj5Db8069fowq7e4I+1d7De2NMSCpAIBGtnWzr51sb5c76LOiT93nPTmLcMojMPZhjSy0tsBxUZu6hPPtpY7QklaGlAukFRClbBIGslei/TyZLqjpiCQASW83i2lJUFmUXoJHAXfkMqEaJ1ofPjkUfWrrZKuA6hem5btxORUskhcBnpzxKzvvv13OPtBAB0dAnzt6J8DX9Egf9NnX/jX/L+vHNy+9+f/AC5qcX4Hnf8AOyfz+5885cc7ccccccccccccccccH/b/AOv/AN55wfj/AG/235/2+eOU29R5ESt6qZ/TOKS25Dyu2JAPb9syQZ6ft357Uy0kADSgUhOiOa6vU00KfWfU1KVlSSPL3FALAdyySGcHRABXUwI352d+RyXnSaz2OmMHbUdyyY2qPCk+YYhAST8rpoW7iNab8AcwzlFLWWi3hIhx5SFo8rWhKlAaIUd62B4+7R/HwT8w56pwWKyeWn96lDbiKEHuC/ZssT586LeN9p0Drz88yRir9ypHGIrEkOnJbT6HyGHwfOh8Hzv8+OV49ZcJo4k+SY9fDSglTntlxbg2rY2QdBKt68D4HzrYPMA5zG1sLk3iok14e7SxRTEaXW+z7t+FPg/HlfHz4z50pncjPWVZbM7sqjTa1sbPgn8gAaH/AE7/AH+eQxy/BKqS33NwW0ulSikt+D3EdoSCflGiCkHf3AEnwOVjGZmesQGsOU0Nh/KgEjzs+O/fjf7eN68cyTTy9xwUeVmVgD93yB41oD+R+34O9DmHmMJpnbNtiRGDi0uAKT7vd5+QFdp0VJ/I0CD4Hje7tGcuCDvWQqjqRvs7T2nwSNfIJHj+P8uVWW1IsPcGKntOyR5Hx5Hz8jX/AH3/ABK/CKqooERPpYdcy4rsQkNMoL57SACpxSSUK/JJO1eNfO+c4+8JbH3qH+5e95FDj7jvSyE7JPgLrX8sAN8x9lXtWw4aSVgAT/Wfa1o62q+DsHZGj48fnXLbfRqw3adaulDIZCvctlTioDema6tmyj8AAEusNqVvegR8E75MT9O9MXfUPpXSgiLIPZO99yrVqzSqx0e3wyjwR8sD5A8xZ9Y2at0b1KWc+a4g1sEF7FmJB87OghfYBGwfH782F0/xT/ehv/r+f/PNp6/H+ez/ALknkBwNADe9DW/31+ecuc8544444444444444458EbBH9gjg/B/HHKZ/U5Rrr/UNmDyFFtmyZobfwNBTkyojocJV3aOlRu3YH8h2nXNa36j8a9X1JzE6t2R262PuqNhQ5mpRqxG9EFWhOzs+fj7uTA9LLwl6Dxcbjvkrz3q3nzpEtSMoPyNal8b+AV8+OYiuJzFdUyX3V9760qQw0Ckq7wBpWj+Pk62AQDs+fMRsvmqeJoX7liUPYk3FWg/6y5A7Tokfb5JKnt7vj8jmRaNWa3ajhjTSA7kfyB2+fAY/BAIAIB1+SBvkKc+gJsky3pCu1xZUoE6/l5JVvZPyPn4+Vefkx9n1lJ5rVtijSOzAlyAquSR58+Nf5a88zHh5mqCOKBQy9oB1sBu0ADYB+QCT/I/Gz4g9m7Viyh1ptslhJX2OJ8E7KinfbvwAN7Hxv53yp42FAsZdgR3FdnWiV8b2x8HRHjZBHnxzKWLkhdtudSkLtDobAA/A+Dv58D9/wA8wtXxrFM4PpZUopc/HcNEEnx3H87P9n4BI3oXRNNWWuUMvYOzwSuz/mRrQGxr5H8fAPLtJrmMoxVVZfOtHRO/2J15H48Af6AyHx4KkP1oKlmQ6hAXvQG0HSiokA7J/ASTryPnlExtySO+EC90Qcdv3kD/AFIJ8DYIY/gka+OWZfi9uOz8BFB7dHwdgj51r8b1v/T8i7T9Pmi+q6w4tLKQtNFjmSzSDv7VvV6YbS960VFySdjQIA1rXjmw79JtdrHX2PkKEipisnaY6ICj6ZoE2Nk/8yZSPx51veuQs/UDa9rpO/FshreTx8A8aPbHM8rqf4IjB38+B/PL2x4AH9c2bcg9xxxxxxxxxxxxxxxxxxxxxyrb1k0y4/V3GpzYKW7jE4fvLA/+Wvsp8UA+Dshks7H4BSPjyNd/6vK8lbrDp+ygZI8hhIQ77J7patyxAysB42Yyn7+NfnxyUPorZVulstXfy1TKyMgHx7c9eBx52So9zu8gaPjf55DXP4rkeKpTY7lNI7h4JTrX9+AAdaJ+QSPH55ro9Sa00ccjxgl1+4hdgAHRJOwRr4+da/Ovg596ZmWRwjjwzdh2RvQUD4/Pz+CNfjfK8+tfWTpzgbCP82zfHMVXJBTHjW9mwxOknZSkRaxsu2MnZ2n3WYime4pBWCU7xr09g+sur2eHpzpvNZURdq2ZqdCVqkJY9ima04jqRs3yA9hS42UVlGuZboQ1KZVrNivCpAMavINsDtjqNSZWHyQiqT8efxyvzL/Vx0ZbsPo022UTPeXWobXX4Hls9C0XHvGneQWa5S1R7dLEhVU8lBbsksPKhKfDTnMxYr0Q9RJqgkaji4FjFpmjm6kw8BU0fb+sDh7JSOSkZIxaR5AaxdBMEDry7KubwlYoZJLbPuHRhxt2buM/ea5HbAT2zBGMTAakVG9vuIOuvYp6huk+fWbNfgGd41eWTgacTUCS7XXSgUe7tqotG4M94lvtX/6Vl/Tf+qVBGlK+2a9Lutem6b2uo+nspRqRkh7whFqgvazKGa5TeetGuwR3Sug2VHyfN2YbM9M5oiCnlqc9rX/yhlaCzrW/NawsUzbH3DtVtqNglRvktsYltuWNQ2nSXyUuLSfCu0DSgQrWilzShvyQpWxs65jfFV3bKop7invdikg67lJ0WHn5/b8HQ0D554cpB7Ve5oHsVSC3wS5JA7T8+B4K+Bv5AOjy/wB/TYgoezTJ5vaVmBhLaCvW+x2fcQUgb14K2WHx/L4H2jXNpn6O6C/2/nrTLs1en4YVf501q7AB+PgpHJsePjz8Hmvn9SVh1xeIrnws2ZmYfP8ATXqvsfP+N4yTr+oAeATy5DmwXkQuOOOOOOOOOOOOOOOOOOOOOQB9b0Asu9Ob1tPlCr+ueVrZ7f8A22WwB4PwfqVaPzvQ0O7cGv1p0pEx3ReXjUExzZak5193cTj7EGjseAFn2POwfPwTyQPoVOsknUVBydNHQsoAdaINuOQ/zse2vj8E/Hg8qH9XnW1fSXozaXlU9RMZdezoGI4fMyN0s0MDIb5SosW2u3EIc7KiiZS/azx2EKRGS2sKaKxyCeNwY6vmFW3Uns060M+Tygpp7lyajTRXkp00JUNPYIEMRJ2DJ42wUckx05jWsZONBK0aIdtoE/0edaBIIJ0vzsg/t5OtzgPTuF1DoOrHUfMOq97WZpd2ciVCyO8dZfu7qzxhEWlhSKjI5GMTTW1LnUOwMeuXhDjtw7jdrHgXVXGj/TEX/wBT9YSdPZTpLpzE9IUb2Cq1UisY/GQzR42lUyvddsR2sZHlaq2bMeDrvJZOdRKSZKtJbpXGk9xDlmHFyVkcCaSvK2zFL7sIljMX2wr7xikliBYd24x3EMSwCqQYS5V1NxqisbDFV43T3ti5i1ZicXMcjscrsr7C5VTPmLaN20/GhfudljRWWVPY3Fq6txiLXrrYrYVO93OeI6as5Ba+SrZS3joFytnMTYPGU8RWodQR2a0BlSsySyCvSygUSquSmtW4pjOlqxIiQEU+xceurRy0oZXMEVaC9alnks0CryGN3C9vfNV7gjmuIoyO0R/Y0ndnG8wyl6h5zLp5SYOd5quHhdbhrGJ4tRYm89WqbatLmqmT3ZsCYzGx2JWLuG8lp5Na8tDIaiGRH0zNsDH5mLpvp4XVax09gzYzdvNjMZTJZlYrILVa9mvXigtRTT5G1cWi2MuLaiBYtJ7UxM8Fw5Skbc7CSOvevLWpRUzSpU6cjROqzPC8izQuv06R+8LNYQE7AHeAqtYJ6Psgvcm/fcbyWVdycgwoQbDHrTJC05b5Bgc+bY1sFF1MjssQ7LJcVtKixxjIbOAhyDYS40Z9uRLUtyU9gjrbpfHUs1h87hY6ENHLO0OUoYxStCln4YYLM7Y+GSR5auKy1S1XyWOpzanqxs8Miw9qwpVKOftSUpcbkFkYREmvZst32nqOzLEbUgAjsWIXX2J5kAEujIC5Yk7YH6YFUtNV1MunE7Uv/EqttZ/ASi6mPpB15OjGJSPA8a1zYB+j6kFpdYXW2POEpxkgf9IvTuPx8d0IXXnZ358EwP8A1PWwch0zSQ/aqZW0V8A7aSpCDoHZ2FcjfjSgD40bYeTV5FjjjjjjjjjjjjjjjjjjjjjjkNfW1Xrf6Z0liykKerMrjAbBI7LCtsIoQogjSVyBHJJIG0gEgeeRT/V1jRc9PMTbZW7KPU9RZmUbIgu07ddx8gKGlMP3E67lA/J5mL0SsrF1VcrudJZxMhJ2Ae6vZrzDtB/qbsEoIHntJPwDzX29Z2G5BkGBYUYS3NvZPc1Dzf0yJSprmRYZfUkOCxHcrbRPvy5UlLLTiYjbsZJcfYnV76GpYg106aVGrmHki7Y48bBaSQy+37a4/I17TyPIs1YtGAo7kEr94PaYplLRNMrpq5DHk3QdoARZNqPgKwZmYg7IBbbjem7QGB2VNHfqh6P5NVX9zfYdE6qqOBsU+T5DSZFPTaZDhz7jTER7PK1dHJfqGKaxm0qXIs9hyJde1WizcjO1rCbHng6F6vwdmrWx9+102P7ZlvYivPWiSvSygiZpBgpfroobE08ENtlaA+5WU2GqRM0sgjOT1ezKgclWJAkjkjJCupZiGbvO+4Kd/b40B3KpHaKn+q9HBvLi5v8AHc2presm2U6ZJvcwuolHk3e8Q9JnZBT+9YPCVOlOPvN/tkm1+qbLbnch11TKJPdO3Vx6QY+bF5Ss8MEMVSvjsdJJT7EVUSGpPH7cUSwKFjaKf6YQlWJJRQz2tfSeQnusU02D7omsoO0HbdxQj3JQR/SEVtkMqktoHrPTS4za3ymruqjKepy8UgXeO1i5USxmtZJYzolLDafxGgYrZE5SJzlU1JgVaylmJDxpopmyoLS1s8qPU9PA1cVbp2sd0yMrNRv21iu1az4uvFYtTumXyDWEgSSv9e8U9obNma+4MEdh/wC8HfF/2pbtwWI58q+PS3BX74ZZTalmSIbp10jMp976dWETERoKiOZHiUsBbt6FLGrHWfJHcbs2ZbDvTxUa0pZFa9FyzEXp2Z1rlRjedzFP+1NvokGpnuNNx4cRlmK4t3ulOy3neR266q35cRiI8nVkR06hharkIraTYbNiDEzteyfT8CKzwYyezaQOZp5pWlQR9sCRIjXbUiqT3LkkDp2xY/3Jazxe3dx7vZVK9TJEnta0kaOV7Uj1EAzAs/cd4r9NKsDPRrJLUjSrHNlMhev5t1tFVtAd35CXn3/g+CSCN73Nb9KNFq3Q+ZtMgBt9Qyop0Qe2rRqp5/yd3IA/LkH8agD+pGyJOtqFdSSKuGQkfjus3bTk/wAHtVCQPwF8nyOWO8lJyPfHHHHHHHHHHHHHHHHHHHHHI2+rGCJfRHK5BT3/ALS5S3GvPhMK3jJWfHwOyQQo/wBE78eeYO/UXjv7R9JOp17BIaYx+QVNN4Na/CS21867WI+Pju/jmQ/Suf2eusKgOvqvrKhPjY96pKFHka+5hr/MD4+eUndZKJPUzpLleEV9gqqvX4QsMVt2pb0GVUZPUrE6kkomx3W5EYCW39M6+24FtR5D69qKAg6z8LfTGvDZuVxZpK8kFmCWJJlelODFahMT94YCNg6xuAXaNRryOTIx0ctPJ17ZBKdwSwigFHjf7WHaAQSd9xGiAQPI5rgepS5zHOINnAoLzKcq6x55id1hGeYjYUz1BLxG9wy1h2s7DapdEIdbatuQLl12TGyKTc1VTSA2vuxpdiwGOuAxmB6bzIlyFfE4vpPp/M1s9iMtFYhuw34M1WsU4cpbF9ZbNJlsU0WFsZHUtW7rJUZZoo3DZypJLagSKrEdSApAqEsXCaZgHIUBmXfd3t2KFZiB8mrOD0RrMxrLZqdlz4zJ+urWMMxvE8ffvES8wlCZKnYTfSX1w/2i/qa+vkv20Z9LEeHBfYs2psxTaoLkhp+uLeEsVHhw8Zwa2rUufyuXya4sQYSH2I4c9QgRJlv461ZsRw05EBklsI9R4Ig6zp5ZOnYbiT7sTNcdUWnWqV2nMlxiS1WYtr2ZIo43eYEqEiPubJKo3nU3Q7qJ0NuM7RbuUtTk2EVdP1EiWMHNKeAyzUwl39f9XHek1s2TDsciiEopocxyreMd9L89tTaYxR5p+vemOvcf081IXbuI6hu3emZa8+Cu2JJLVhcdN7E0aWK8ctbGTKpuWIxbi9xXSv593ffGYXKYOXMSd9eK1iYYcok4vw1k9qD6iIOrSQygSWou8QoTCRsvKWKqBaP+n9Qv1MCwza+/cm7bqDOh2UJu/i1cPIoeIQkPnG4t+mpZjxHLaQuws7iUtSVSAizYZkOOOMkjF/WVlMp1HVwmPWs1PpmOWrO+Omty4ybMzGMZN8cbbyyrThSrUowoGWPdaSSKNI3UG6q+PsQYOzkrS2hPmG+oiS6kKXY8agP0aWxCkcbWZRJLalc7kH1CoxHaN7yX6dkQM+mXHZo0oXOSZhZhY+FN/vC4TBHj4DMNAH4OtjQ0BsH/AE9484/01xwZO1reRy1zz4Pa9oxJ/JASIAeTr8+fPNY/r9P73qVlU+PpKWLqkfsy00kbf8lpCx/cknk5+Zv5hfjjjjjjjjjjjjjjjjjjjjjmGvUPCbndDOrLbu+yP0/yixVoEkftNW/bApCdqKwYO0BPkqAA8kcs31DxyZXofqujJ/TNgckfg73BXewutb+7uhBA0SSB/PLv6AaQdb9JpFr3LHUOJqJ3HS9125FTHefwm59MfwpJ5q+M9ba2bGcWzMac2SCpmU2twn+XuFv7Vo7vuJ2PHlJ2QTzVrY6flioyIqN5WQklB2OSNhi/dvZBVtnetf0+dc22H0oydNoxZrSRt2qxWWB1A2pGu8EA6+0AAAked6A5Br1MdGMX6r2zHVDDMys+k3V6mhmPH6h0JjPs28Mobb/bcupZS2od3DcDTTBke9GsvpEohrlPRAmOMH43qvI9J27vT2XwlLrXpDI2Hls9O5EyI9ax3E/UYa5GkktKwne0gRllrBwJUijlKyCp0ujMlDIiQTz07Ct/cPDE57P6SySxD/mxkeGGu4fHeA53TVm/RvrXQ3E5Jy3BbRiFjTFNi9sMmu02NTdt3VZkTuV2sqdj793kEmTbwHZa6+VZH2GZa6xqe5XNFl2SeC6+6GvUoWOE6kqyz5KS5lqEmIpfS26Ro2cauIqRQ5CLHY6KOjNHB9RXq7d4UuNXFpjLHWz6bdbW5JVrHGSxtTStSlmuWYZadoWI7LXZlNOSe07zRGSSJpNacwGUxaTnj1fTqVbX4y3q9mkjqPcobqyKVLbn+MCfViWtFhOcsAu2uA7LnS5qKiS9Gx6K86htqqU1GiJa6X+rVqYo4XojBx9LUGa2pvMyDLCrbNfdeulXtp1NQ14oGuwibIypGO+1G8sxku3C+kV76uPJdWZAZayq1uygkbrihPWEpWxJ74NqyGlmeUU5BFQRmBWs6RxanL0fz+M3cBt+cy2UuArQXCVIAUCrvQN9qinR0dDQJ1oAjno3psxxiwa5IAJBOwWHao2pPz+fkfB/ffKn1d0tfkj7Y4ZXMgPYQr9h/A+872ASR3eQT9oP55ve/p+xfpvR30FWfKrDCUXLi9KHuquLWznh37gDpbLzJT4H26P5HNkHppUNHobpyAoI2+g951HnTWJ5piN/nww2fzrfNJnrgX/8WOuY3J7q2cmpEH/pNOGCuVH/ANIdH1skj4PJkcvvmKeOOOOOOOOOOOOOOOOOOOOOdey2mayPFclx946ZvaC4pnSRse3aV0mC5sD5HbIOx+fj8755b1dLdK3VckJZrT13I/wzxPE3/Zz/AK89+KvSYvKY3JRf83H5Clej86++paisJ5/H3Rjf8ft88/PEnZReU1nkjAckR3623nRXEDvbLbkV1TDzJQoElSFsqGwQlKu5OjrzriSlAd1WK96vIs0bldo4YpJGw+D2lWQ+fB+OfqOp1KeQx+OnlqpJDZo1JEcKHWWGaNJIpo9b0WSRC29j51sa3EXrL6gsxcYNCxZPoje4sqZ7loQT/wASldpB/B/kVJQSftG1atxfT/DrlJMhNWR5G8q/2hvx/Gv4OgO4eTvxzIvTXQ3T0cn9oS0YffKHTsqEqpU9qnuX7fgAnt7iNb3oahRb53fSHzIetJqVbCiEPr7fklKtBR8eSCdb1/Lzvl7VcJQRBGtaBgfADKp1+D2/ao0dbPz+x8HlZyNfBwEbx9VFB0SsKsWB8DtZEHtgHfkknev4HOxVvUK6djBlc8LU8lxBeKm0uFBAQSdeAtP4J8pIPj5Io9vpykszSCsVCsCV0xCnfdryNEHXkeSd8oFnC4qRklqwQmKSLvP3KRvztVCbAYE/Ogw+0keAOSh6GNPzWLScfcW6Iq3UvE95HYSFD3djvWe0q8H7Qe0E6BFx4orAiqqiMM7oq60ACul0Ds6GxvQ/cfPxjnrGCvBEip2diKC0jaUKo89o2NAKuu7R8tz9Kv0p0Qxr0z+n+j9tTK63ox0yjvtKHapMtWGU0iYCnQKT9W+/3Aje9k+SeTw6dh+nwWHg0B7WMoLof4vpIWcn+S5b45+aP1PyH9q+pHX2RD+4tzrHqSaN977oTl7awHf8xKhB/bXM/wDKzyxeOOOOOOOOOOOOOOOOOOOOOcHP4Hzr48/9xvnBJGiBvyoI+dgsAd/xonf8b8H45w39LedfY3n9j2nR8fsdH/z5o7epn045Di/WXrpVV0Uy4kDqTm/0CXEBA+ll5DYTYDJUkBxS24MuMgaAASB8jWtTHUfXWFwHqZ1X05enenZpdSZqD2XJBMKZGw0TqNBWVomjK9v4OyN+Ofog9F/WjDZr049OpL8yw2ZeksBBOe8k/UVMXWqWZPnsKtNXkbQOwSQfA5SJ186c3uNTJSrqrkMFT75bfCSrtQtICAokBJJUCN/IJ8hQPLzpdUYjLWEGOuRTMqRq6BwPIY9zKPk7AB8jXyOTY6EzuOy1GdIshDYEis8KgxhkHyE2CSSv3EMfBAI/bkGZNbOZsElhZ7C4C+08CttWzoqSn/hUdnt7fGx9xPyL+is15IGV0+4KxjdPDDWwAzfJBOu4HQ/blNuYTKQZZJas4MMk6PaisFnhdGbROmP2tog7UhSdBgedriUEx6XWiDAddivSmWpK2iAWgpenHNbSPtCisjQJSAQTykT5GGKGyJrSLNHE7xI42HKjaKfJ+79iD8+NeAR7MjUWpLAtKv7kUkyx2ikgUorHTyKPCsATvt2SR+fHLTPT502sptfUUtXFckybqTBiNrbbPeXp0xqIxHKAFH3XHFpSGwCV93an+QBtnD9QQSTl5pP7xrUVeCuAWeeWWRFUIq/IZ2CkAbBbwpPaDgr1VylHDxXZ5pVjr1qFmUq+lQmGB5XkkYbAUBN6B+0DZbQJ5+k5jlS1Q0NLSMJCGKiprKthIGglmvgx4bQ1oa0hgDQ8DWubL4IxFBDEBoRRRx/Gv6EVfx+PGh+QAAfjn5i7lh7dy3bk132rNiw3/wB080kzbOzvy5/13rxz3XPrzz8ccccccccccccccccccccc4rSFpUk/CgR55ww2pA1sjxv43+D8H4Pn44/z8j8j9x+R/qPHKHPXf0qyzDuo2edSbDGZtph+UzolpDyKqiOyYMHuq4cB6BcmKy+5Bmx5cQlpcxpEeWzIQth9bgUhOnr9XPpV17jfUjqvrZ+nbmX6Wz7w3cdm8XE7iiVoVopKF94FZq08ViqyR/VqIZ4pUlglL7iM7/QLrDE5Lp/CdNVctFRzWKSWvLQtWFhlnU2Zplnp+9JGssMkcyKyROWikjZSgHkUZ9ZaPDcyiqTcVkF9D5BVCliMuQANkOBK1MvqaUQUpUhvuGiCnwTyIXT8/UHT1hL1OXLVGn7Sv1CzKNshZ41kKhWCn7QzRkHQJkbYPJ49I9SZ7BSbqX7CtEO0SwGZk+5gCNx+7CG8nuBPZ47h58muLK+k3TiLPDiMdgtMsqBQylpbbailROlJQ536UPJ7lkEa0P6kLh+tOrJqxQ5Cy7yr2vISrsO4ADyY+wEbI+0fkDu38Zqh9U+o2i1JlZHkO+55WDyAlQPG0ABA341ret89ezEwqDNadapKWE2hwLWG2mkII0EfalchRJJGglDaiCpR18Aeh7PUE0DLJkb0zlSAHYltklj3H2wFAHw7HetDZG+dE68zcmu7J2bABLeXZifPd2kqnjuB8nuH7fzy5D9OfoZ1M6sdVumWQdLOndkvFcYz/C8hynOp0B+uwqnp8byGBb3EdNvLYREsbeTBiORYdZWplTFSpDRcbYaC5DeQPQzo/wBSOpuuunJ62OtzYHEZ2jkchl7McgoQwUrSWZ1luSqK5mKII4alcTWJpCAFRFZ+RO/Up6sYHGdI9SY/qLqCA5XL4PK43HYWKeObKWJ79OSrXY0YHMsFaN5A0tu17EKxKwDSEqh3TR8f9yf9yTzbqN/n9z/tvx/25pp5885444444444444444444444444459bjTbyFNuoS42sFK0LSFIWkggpWlQKVAg6IUCCNgjRPOjorgqwDKwIZWVWVgfkMrBlYfwQR548jyCQQQQykqwIOwVYEMpB/IIPMK9S/Td0I6xMx2epvSfBMz+kBTGfucehLnR0EaU2xYxkRrBppXg+0mV7QUO4ICvPLO6i9OuhurEiTqPpTBZcQHcLW8dXMsW1CkRzRrHMoIH9Ik1+wHLx6a9QuuOj3lfpnqzPYb3v+alLIzxwyfsZIGLwOw+O8xd2vG/J3GWb+lV+n5YSFSZvphwKQ6pXcoLmZaGSd78xk5GlntH4R29o+Na8cteH0I9Ja+vY6Kx0RX4CWsqEH/wCH9oduv41ofjQ8cvz/ANpD1x7ez/xIz3Z4Hb2YzuGv2kGPEgOvz37PydnzzJGE+gH0W9PHEvYn6YuitfIQUqbkSsEp72Q0tPlC2nsiat3G3EKCVJWhQWlQ7kqCvIuHH+mPp/iyHpdH4CNx5EkuOgtv3f4u+4LDb+Pu33j8MOW7l/WT1UzqGPJ+oPVk8bb7o48zbqRsGGiGjpvXVl+PtIKeB9vJZ11bX1MONXVcGHXQIbKWIkGBFYhw4zKBpLUeLGbaYYbSPCUNNoSkeAOXtFDFBGkMMccUUahUjijSONAPgIiAKgH4CgAfgcxvLLNPK8880s80jM8k08jSyyMx2WeRyXdj+SSSfk+fPPN59edOOOOfW6paGnFNpStxLa1IQsqSlS0pJSlSkIcWlKiACpLbigDtKFkBJ4J0CfnX/r8An/YE/sCfHOVALKGPapYBm0CQpI2QCygkDZALKP3IHnkGK31K9aquguf8v6F30zJWJOSJrn6Giva/HWG4rrycbFi05Kyi4lRp8ZdXNn2kANFli1YbVUwpMO2ZrrUTOZSKGX6nEyyTq86xtBFMtfw2q3d5sSvG4aNpJUAIEgAhBST25JXPSL07vZSgen/UnGVcQ9fDSXoMtlcbby0jTKpzf0liOthcZXsVJI71epQsGX3ZKLSm/NXt4+W5nnpF1zqerdFi15X41lVQzldXOtIa51JYGuhorZcqulwrG3MZmDGsRPgWDDMXvWH0Rg8y6tDzRVVsblo8lDXmWCeL6iN5F7437F7HeNkeQqqrIHjkUpo+UJDMCOYy679N8h0Lk83jbeXwd98HdqU51rZGqtyx9bBFbr2alD35LE9RqdmpYaYBTGlhfcjTsft//9k=</t>
+  </si>
+  <si>
+    <t>Trà xoài buởi hồng kem phô mai</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEEAwEBAAAAAAAAAAAAAAkGBwgKAgMEAQX/xAAzEAACAgEDAwMCBAYCAwEAAAABAgMEBQAGEQcSIQgTMRQiCRVBYRYjMkJRkVJxFzOB0f/EAB0BAQABBQEBAQAAAAAAAAAAAAAGBAUHCAkBAwL/xAA6EQACAgEDAwIFAgQDBwUAAAABAgMEEQAFEgYhMQcTCBQiQVEyYRUjcZFScoEXM2KhscHhJCVCovD/2gAMAwEAAhEDEQA/AN/jTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTXTPYhrRPPYljghjALyzSJFGgJCjueRlVeSQAWIHJA55OvlNPFXRpZ5I4YkGZJZXWONATgFnchQCe3cjvgeSAf0iPIwSNHkdv0oil2Y/gKoJ/5eMn7HVO5Tem18IA2VzePpKxVVMs4+927uyOMqGWSVwjFYULSMFJCkAnVk3Tqnp/ZEEu77rT2+MlVElmXgjPJzKRowUh5HEblY1JkYKSqkYJrqe1bluDcKNKxabiWIiTOFXiGYnIAVSygsSAMjOO+KMbrf04EEcyZx5GlSR0r/l96G12xRtNJ7kFiGF4WSFGmCTdjyRjmJX7l5h0vrJ6dxwGYdQwyOEeQ1Er2luBY0MsnKCWKMxlYVaQCQoWXBXlkA3teiOpmkMZ2x1AIBmM0DQZL+2uJUkcNmTCfTyAY4YjDEU3lvUj08xUUUjDNW/d55FTHGZYgiNJIsjrKR7scahjCgeRmb2kVpUdBYL/AMQHQVKATB90s5HJhBTV1QEMSGkEpTmgGWReTEhlXk6OmrtV9NOpbTsgWnCR492yAzZ/SwUgH2274dioxxbHF1J78P6iOnuSWRZbN+nYhkSKxXmqF/p5pWf267yxuye+0KLM0fjj3BGhdhwKza/XLoXcUf3bdmjNEYEmis1mZVlnaThAk0WUkmEUfvSIAOAYIC7AgfC76ddS0ypWCGykodo3hmA5xoEDScHAYRiV/aD/APyI5EBe+qvwXVbZ+fjWSpcePulmiCTiL3FMPLBpYoJppYfehAsRpKiSiIkyxxsrKJdsPqB0z1FDFLt95SZpJo0hlMazj2mbg8sSSO0CzxD5iFJgk3s5aWKNlYCx7j03u22Oy2axARY2Lry4HmBkIzqiuY35ROUJQyrxjZwVY1DhN57Z3HGJcLmaF9Dbs0R7VhUkNqnLJBZhEEwinZopYZEPbGVPaWRmThjfdu6g2bdkMm3bjXtJ8zYpjgzIxs1JZIbESxyrG7tFJDICUVlIQuCUwxt1vbr9BxHbqTwMYYbH1KCvszoskMhZCwAdXQ4bBUsAwDZAqjV4ByAfzqi017pppppppppppppppppppqwmbkkrX3i3M5/MGd56NyWWexQes0nC+3VgmijWJWVR7Lx8oR3Oe8A6ge51lktBtwSJ7MWWqSzPPLWwXEmXrRzwxuAyqyKwbiy9+RBzf6k5SEisWWJuImSNYo5yQpUcZXR2UsjMGKkE5C9xjFrdwbQxmduS27uaFyJ1WRacZpDHRzQO7rIMfaWWaWecMIrEgnAEYBiVOXJxV1T6d0uorE1zdLj3OVdpBFEYU2+O3FzaOUbPIs0k00i/yppvmEBiA9uJMuWme09Uy7ZBHWqV44MShDLIXa00DhQyNeURIiJxLRp7X6+zSMfbIt1e6HrYhgym3crBjMlIFNxbUbCQQLJ77RY80JjDEWnRW9l0SGWMvWeaGBhImLLPw9e7Qh3HY97l23cZ4lnu1LFdfdMqOZ1Sq1eUxRyM4wiOWjKyvGzMjchL4fU8JNLU3Ol85TDFIJa8w9oFkMYknMy85E4OwZ8iRGHNULgFqbl6d5eWhLgJLkluwkYe5j7cNDH3ZMVYRlZ69+m8tdZFmlmHt/WfmKlUsK3MccxiLeke/wA0H8CFprViGASbntNmKlQufwuVHiSeG7UaxT933mdnrJa+fUCOaH+YqSte1612xJF3MQpHC7cK1yEy2oPnI2BZHglCznMaxlZDD8u3uMp4ozpr9c9G8HFgoa8l3KpMtSmjrXysVW7YavVWsVlv3WksKGjBLMt2L3y8pkZGdmadv8PmztsQgbc96Fl6dYe3UvRV5ZHECRTRNYtLJJGgQ5DLdheUlxMySFgY8fU3cP4izmtRMRmsnM1aSSOMNLzR1ggCxMS4GUauViCxgAhRjw7W2JtjaGWrSS7phjswY2WH8vu5OEvkKcVqV4reStNcne9JE0rQlJieY3MbrKsaGO69Hek2ydMX6Ve1vclm1W25/a298h7dOGy6pc3S2lhvnphK5DR2Cxy00YSWJVMdPv8A1puO8VZ5E21IoJbalrSrzSvO0KFoKcPtBYVwAyvHx5siOHQ8g/bDdwGCizFX8+qyYvIXLNivVxTvjpsbFPG8ZTHWDYsQ15IlcvDLTFIJIFlEJcEGcbfsCbRHu9KO1FPte6WLM0MFSR9ql2uGxG0Zg2/lNNVrGMSOyz1BSZpSsxiacMdR63uh3GWhaaJ47dKCukstiOO6l2SFgTJbwkTyBuKAxSicBcosjKM6yk6CVNyQYZp7GWz+Y2jZrCTbVvdmYTNZ6aJ5/tdrojWZ6aRpIkBst7jIYgAwRpDlfoyncpbekLXb9zb1jRaUm6W/nrrIpABeyyiSVVReCvISz45HLcmaGdQWa9q20q1alW2WPzMdCt8pVB/4YAzKjEkM3HAyT+ABkJqZ6sGmmmmmmmmmmmmmmmmmmrd75x1e5Nj3mRW4jnQEjk/ayH5/t47/AJI45PHIPBFk3aFJGjLY7Ie+B/jX7nGPJ+/+h1W05GQOqnHgjPcf0x+4HfHf+2rN53b1URl0DKQPlCykfr8oQfHHBJ+QeNRizXQA/kDAYHB8g5+nH/Px5x41doJ2J/dSRknt3/APjPj6SCPIwdWR3JjbMSOYMhcQDk8GYvxxzzx3FuAR48/7GrHOjYbjLIMZABY4/JHfvjt2H5/Y41c4ZOWMqoP5AH57nuM5z98+POfvjpuafcsDSmDP3UALdqdy+D/a3AUAnzwePjjwfB1GrMlxRmOy6jJIHbH4yM4BPbP5GFGMjV5hSsQoeJWyQTkk58EgKTxwM/nBOPJ46x83bubeNMSc52xIePtHKuSVJI5J5I45PHHB5H+OTqOWru4pyHzUgznsp84H6h37k/ck5Pk5+90gq1WBPsqcABjgZIY9h4Azkdyf9e4xq1MG7N13MjFDNlbLcNySJWXjk+AOG48+f1/Tj9tWkXLbyLynkJ7jJJBGexBI7nt9sEYONV5rVghKovb6QvFSewGSSBnHn84JHbAyMjtjwPYjktX7DSLHFJLzLKzEuiHgv7jFVRTy3PHHA8kfGpFQywLzv2VC2XYkfcgnJwOI757Y7k9u+rXZX6gkacSWwAgA84GAq/UxJA7ee+QQQMzfbBqx0tj7QqxgBYds4NeF47SzY2vI7Lx44Z3Zv/utjNsjWPb6KLghakABGMHlGjEjHYgnvkefI86xVcYvbsscgmeXscgj62GCG7g/kHGPGB41V2q7VNpppppppppppppppppprEr1Y5vL7Xwux9w4bIWsbYrblnpSWK0jIHjt4yxOIbEfmKaF2prykyOobtZQGA1gj1337dOmto6e3ba7s1GSPeZIJJYiPrWWlLIEmRvolgIhbmsgIDBWXBBJyL6cbfT3W/utK5XSwj7cJUVx+lopgGdGGHR1WTKsjAg4zkHGsZ5vUXlqOPVs5QoZDhWDSVpGo2HA+GZeyaDuPyQsac+Rz+msKj4hp9tprJvm217eOau9Ob5eZuPYOUYSQcnIJIURgAj6WIUien0wr25/boXJq7HiUWxH76DkMsoIKyj8HPIkgHwCdWzz3qb21NVkmlxV9PkOsU9Wcj5PapYw88fryRx88/obcvxQdFT1/ekoblXyzKyrJTsMhBIJIWZCR2Y4VT2x/TVcno7viyCOO5UkyuRyjniyM/5Wwc4+xznOsdNzepvY7zPX9vLo8iseWoowT544kjmKkkgcFSe0jx+/xk+InoKzGHSXdYhJkAmkW4jtgkxyOvfPY5IP376u0Po71Sv6VoPg9wtp1yMD/FCpAH3+o9/txGsfN29csBZ7yiWQpjLKxRAR2knkEy+fPAPPHB588edQ/c/iF6HiYqv8Wdh3QLSRQ2fH1Gf9J+2VU5wMedSCh6NdTS8e9FQSF/37sAc4C/TGcEfcZ+wzkEZoXB9Sad+/HYrKvbMVUPZmhjPBZR2iKJi0gPPcpUguOQCOWIisvxG7A1iOvt2z7nZlc5VrJr1oEP3LuDK7AfdQoPhfOGEg/wBjO5wRubl6vEIySRXSWZ8AZBHMRRrnx3JAOWwQMayjxeTlzGOq4StbeKXLyVKnbAGUOblqGusJHcWId5SO0sx4A7ueQdX9/US9vkVamJ/lxuVivVSnUYgFbM6xhXlP85wSwCgkDPkasQ6VpbS8lgQe8aUUsjz2QGOYYmcuqgcF7KxJA7ZJyPvsZY+rHRoUqUK9sVOrXqxqPhUrwpCgH6cBUAHHjga6W1olgrwQoMLDDHEo/CxIEGP2wutOZXMkskhOTJI8hP5LuWJP75Pfx/QeNezX21+NNNNNNNNNNNNNNNNNNNYk+tGosvRqbIFu1sNuXb90EjkdliebHS/Hkfbb/qBHA555B4Ou3xO1Wl9MbVpGKNtu77VaMgUkpHNLJUkOR+jKy8Q3bBbz9tZN9JJQnWEUJAYW9vuwcckHkqpMpA8E5jx38Z/fUN+5M9PbJr/VFkChft5AA/cn5/5d3yfn4OuVfWG63flpFaYkKABhi2VJ48jkjDNkYLYZhlhgDtuHsu3xhhL7bA8skkqWGCQRjI+5P7Yz37drKZp56kc4mlLQysW5LN8H/rkgccng+CP051gubd7NRpBPJIIpGJwCSGB7AjDZH0gfgeRrIdOskwjCIpdQMDOCuDgAAnucD7dvydYsdRN1VMUrSV0aSdiyq7RhUAQkhG+4Mxf/AIgKT3fI1dds3b5gMkDngpQ4+pVHcguMY7g/fuOwIPcZnWz9Oz22HuYRO308gXJYdyQPATGS3byO2sONzb53RkLjJFkJYY3Lp7UJMaMkhCkdnAbuPHBcHngkHwAupnXiryRl5ULMSD9Z54KfUp8cf27ALjv3JOMiUenaNVAGgVyvdSwViGBJOTgjH4Hn79s6uFsCfcEV2hM9maYmSJkiH3KPuAIBUAsW88BmI8EeRxr80blZtxEBRFChyzjALYyxHbGABnl5J7EZOrVvm302qzDgqDhJyJAPnOO3HsPPjyCfOpTOgqbgzHVno5hbNeUQ5jf20YpowvPNaHLVrlgP2gKE+nqyd3AIAPk62A9MKqbx170RQRmKy9RbPkHC8oYLsdiQBe5KCGJu/n7Ej7at9eilQ6V6stxODJW2fcgrZBHKSvJFGCPPdpe484+rHjW0enlR/wBt+vP9x45P+ePn9+ddihj7fk/v9z489vxrnMPC/wCVfP8AQd/9fOuWvde6aaaaaaaaaaaaaaaaaax89UuHbN9CuodSNSZosPBegIPA92jkqdjzxyf6FkPx/wB+NYj9dds/i3pV1nUC8n/hkViPuVxJVu15gcgE4AUk/wBB4GczX06t/Jda9P2CwVBbeKTOO6TQSp2zjw2DnP7YOdQRNgZ1tWFliZVdgtaUA9zMQFCFeO0RntDO4CgE93HPA1x36lrokdmvOHSSM+3C31fzgyqoBBIX2lALc8grnJQ63up3FeGFomDMOXvIwUlQpclgc8ix5H6cljxxy+2o3+unrQ2ztvPbp2N06wNbqBn9p0L1nO5rK56LaHT/ABUlD7ZsbHuGapfsZ/NFy8dXE4WkxyVitYo0rrXUERte1+i26bnBT3Lqi7Nsm2blbhq7dWpbfJuu+WRL9SWWo84EoUFUcpbltwtWOSOexClduepLVtmIZrxq8iIZZDLIIouIZQV5/WzyZz/KjjJZhwTkexjT3h6nPUJveOvkNp7M6dZ6lax+6rfGA2v1MyFaG/tfKVqtuhLk7+ZxDWIrOKsjLR2amOa1GxhoS402LKFch7b6PemGxyWIN733qfbZ4JtoRjuG69MwSPDu1WSWvKtWvRtrCRbUU2Sex7RKyWFsmFDqZ7X1F1Yio+10NtvxyxW2BWlucgRqcsavH7hsVWbMMhmzFEzqxWAI0rgatrV9Qm/cBm8JY6gdL6GS25nYbV+nuLp/uBDZqUK7T+zLldq7maG7Rt3q8Amp4dsu+Xnst+U16VjKRyQLe5/Sjpzc6O4J0v1faq7ltssVaxtnUm3ZgnsypEWjpbxta+1YgryOVmupSanFGguSzxVZElMqHXXUFA1BvPTUE9O5HLPDuGy7gHligQyFWt7beIkgeZUzHAbXv+5ItdUknV40km6D7y2pvda+69vZOPI4KGWSswkinp3KGRpsY7WLy2NtrHbxmUoygw3Mfcihnhl45UoyO+CpOmt32DqL+D7zUavuAjSxGUkisV7VSbvDcp2oS0VulYUZhswuyOMryDAgV+7bhW3XZRNtsolWw0kbjDRyQyK4WWtYhce5Xnib6ZYpFDqcdsEEzEeiSzLvH1NdK4/b76+PvZLLKh+9Y4cRgclMjccdoIleN+eORwPIJ8bWfDxtRter/RyMA3yMtq7gdgPlaFpwcDGeDMpyxOTjz21qh61wR7T6d9QBjl7KwV2J7MXsW4QB5GcqHH3wpYdyc62RkHaijnnhR5P6+P8A5rrEPH9z3/c5/wC//k659a5a900000000000000000001Q3U2guT6d74osvd9RtPPqq/PMiYuzLF44PP82NNRbreqtzo7qiu3iTp/dsf5kpTSJ/9kH7/AI1d9gm+X3zaJs4CblSJP4U2I1Y/6KSf3x4OterqlbX/AMa7+ipZdcVlbOJixGNysnutDjTmbtXDPe7KyyWWanDflsqlSKS3/KDwRtMqc8i60O275ur1p4zYanY+dgibigupTDT+wxccQshVGb3CVCLhwEJI3o28TVZ6MrR/+nlb+cq9iSF5jBPgEKQM4XJXJ76gq6l7wg9MW6c1cmxlOexuPESV9t4CtgssmEoY2nPegmGJyW4LqN9HNvHHQ7jvotWdLMd+QULeMuQexHT7rsMnqI0VCe3NAm1XUl3G+bkDXLVmeOuyLap04M+6u1SybfFmZDEI1SxBahlPLMmxwoIzZrLE4IbjzeAkDAZA4U8iCxUgdzyBYY8mKvqt1Au5Lfdq1tjc8oowpLDXyNGxn6E2RoXadc3cPlocnk55LWNxDe/jaKzuPdx8VcWHstFHOmeukto2+LZEq7htlaSxIVeelZr7bcjisVJX9q5XNatHDDYt/RcmaJea23eQCPkY2t28i5BZMlay0UUWY0linmhLxzKCa9jMp5pGrNXyeKOoA+oqCLs1+oHRWxT29Dh5ttbDvWNj4ra25zjduSTWMebE4q5VoY7+KydW/lcFUgaxiZPqhEK11aUkt+UWFlgs/TPU0c+8S3pN36hWPqK3vOzR2dyWOBzFEJasLmrZqzQU7dphBbRkaVmjknjWsqxOkt27fKcUNWGODb6P/tcO3W5kqxySqkrlZHT3ophJPBF2rdwQrMnJ/qAyP9PGEzO3esYpYa3mcltvetPI4qSXI0ocW1yba+LgzO1Mpfo+9HZjzrbfNvHSyR4inFJiFoz35pr06nUW3GaHedggnuVqVXddllrXGWtZa0ldd1tSVt3q15xG0bUDuSpYQPcnlW09mOBI6sYGq+O7W2/eXZZppat+rNVdrCJG5elFC23TSIGyZ/YZ67ssUYaBY3laSdyRss/ha4y/kPUlPLLGVh2x093HfJYHkNfkoYeM8nyCPq3Q+fnu/wAjWePhf2yOz6kfPouW23YNymyDnibJip57Adj7pAP5OMdu2t/xOWYYuhK4VgW3LfasSnOARAstorjxnCZx27Ak4wM7G2ui2tAdNNNNNNNNNNNNNNNNNNNNNePI1o7lC7TlHMdupZrSDjnlLELwsOP3VyNUt2ulunbqyDKWa09dwc4KzRPEwOMnBDkHtr6RSNDLFMhIeGSOVCPIaNw6kfuGUEfvrWg6qYGxldo76wNUoMvHTvLj0ZUl7svhrMd+hGYp+Y2Ml/Hx1isgKH3HEg7eeeOGz0Ytp6r5ThgtXcpK8/1OG9ty9WxIGX6lMaSO304Ax/boltyS2qlaSJQyzV0kQL91kjDIuTnBK8QgI7+T27agr9RW4+me/YtqQZO9vy7g32luZsoL7vLd2dn8Jjq2XkXDyZKD+H61iWaK3PuWnQyLXJ2t1KkEMsEs9RJFc2bqPZN23WWrHs0N9tz28QNGQIN2pWrElZDcEDC/Intyp8jZmhWMLHLI7q0SvJlDpw0pKUfaeNHinNkqhDQtBEG7FlWAMCre5GGDsSqhGGeML2X6rVsg6jcO3YdzvjKdWlibiXr2FvU8LiIGSpQvfw5HSgvVYYOZLF2zAcj3NKz5DtIK5sTp66xieruj7YOKJJGKlOdHnkwC8LXEZ0sMzMq/WykMpMbsCWs8m6V4lkRqAugtLOD705cKO55iFmBhXszkBVQdwVXOvzdj9QcVnM49jML3WNs1sYdr0o64fb2FxH54UtjJRVVhzeTgwn5r+ZUTPkvqp3rkZDISRRJBLUb9sW4wbbDFXIMds2ob8zkx7ncsim0kHsSyK1OF781d69oCAmNZuVaFGKlKjpq5V3G5bEpdJ63y1qsqRvPUgrm2sViSaFSbLiokyzQ4lRXEZ92XiAHmU9I3V3Hbw6qzJYv4PdDbD29unIHflzHfQbxy1rI0aW0sPhM6FrwQ1sRUgktS4GGHstWIsZYsWq9cwCNtdN56Xm6b2WMJQvbUN/u0K38AhtLPstCKKxY3O3f29jK8r2pH4Lf5l44pbSqkkgftLb2zvuu+SQ0bibhBRWSWxfEE0Nvg7pBELELIBH7pLeygVGdIXJij4d9nj8IeSruDqP1q3FXKscVtPbWFZ0HKr+bZuzdClj8F/wAlbtHyyoT8AjW0/wAJe2vHvvVtt8/ydn26qARkAWrrykchgE8ag5DA7d/GdaxfFxWk2rYOh9vdSotbnulwZGCflKkEIIAyMH5wliTnOAFXudTza3n1ozpppppppppppppppppppppri/8ASfAPkcg8Accjnnnxxx868Pj/AFH9s9/P7Z/7a8Pg/bsT2/YZ1qf9Z9/3tr9b+q21DOyriOoe9KftOrKY0XceSeuoLDjj6OSsQVK8gqRwNcrOpNj+V656upyKxFfqHelQdgxjku2JY8+B/u5EXjjGO3jz2V9OujqW6+nXRu9rDhtw6a2OwGQ9+Z22sJTkEfUJ4pR3xk5xn7Qa+tmTMYGW5dxa5bK9LsnuiLdW7Nr4WrUyVzb1+ZJkz2ZxeJtVrMmRo34ZDaipVpIo8NlXs5N6lpLDPDX0Jat3cIq0zU6/UUdKTbtqv3JZa0F2JfbenWtWY5EWCWNwqPM6s9mACFJIipDSu16c7ntlOTc6de7d6ekspb3WlSrpYt0AC6WLtenxd7MLhlcwwY+XmEkpilhLKsQB6j4jaOasQ9NbkMVbKQ7np4ZnxNWbc2X2f2i7kreZs5BsvRsMy0ruL2xekgw+SpzyPdytE0uxNZRHTNrdqMLdRwM0tOXa7FxlvzJtlPdmIgrwU4qopSonKaC3ukSPbq2YgIK1hZ05iJQnb9qvrV6cmr4uxbqlCL5KF91t7NDE1m5atyXGtV2JMFihs8rilarzH37FZq7qurXZHefS2Dc+JvbJ2/ezcWR2zep5TFHJ5KrFmLaLjalWSyYZPy+OvHbrTXcw1n6CvPdhsXDFPE1avYktfZerm2m9Dvu5VKMlXda8tW4tWvPJRgJtSSxqJlM7SvDLFDQEZsSJE8EPOIxSmOpoVugLfUmzQ9G7Lc6hm3XY7UNjbI7dqCPcbK/JVYJbEyH5GrUrWEmsbrPbbb4mlhlnUTJJCJZNvR9Xubc2a1kZOzlMpkkgs5XLTzy2y610NbHYitcn4mkx2GqD6KnJL2mZvfsuoksMNYY6xkj3TfZwsEdStXZ46lWNFjLcyJLFuaCNjHHZuzZmlH1e2vtw8mEfLWyexemrdF7HUqblN/FN43P25rt0WPmo2CpilTq2eKNJQ26sVr15GAknYSzyDLqq7kP4BofKdOfURuqRZCLHUDZu1kmkUgPJhNsXM1MiMeSwjG54CQQvlgSACNbJ/DLtfym39X3ypU29y2uqrH7inUlkYdvvm4MjxhsnuBrml8fzrW6q9OtoUqDB07u25vGpGFG4bmlOPI+zH+FvjvkZPc51sC62j1z+0000000000000000000001wk59t+Oee08cfPPHg/70Pf/wAaeex8ff8Acfcd8+daYnr/AMq2zPXj6gcAsphltbto7iirsOEeruLa+ByayAnhV77Mtlw48qXVhzyANFPUXYlX1I6q5xqEtW4rnbsw+ZpwPyGO5Dsr5GcA5OAe57qfDWYt4+HP0zuAkmptVvanfmcGbbN4v1yGHYEiFoQB/wAPft21HJ10zddaL3J+Ud4mZ35VTGApDBlYoeW8oQvBBJ4/Uawp1Rscy2I2jUEDDHsfqAGSB/Xz98jyfsdruhoeQ9pjyVCeIxnmDnH1Z+y5bkc/fABwdQ29Rsds3c2eecYrBTmEzCW2uLpGSaQ/rNPDEGsuQO2MyM/HkEtz3HIPTlzfNq28Rm5fjDiMrCbc3CNQAAqRSE8Bg8mCYBwMDxrIl7096D3yQ2t16T6Y3Ow36rFjZaE88jkAc5JRCJXI8kyOx75wCdU3szZ+yLVt4clHjcZWgb3UhhrQ0ksdnLGEvHEncx47Sjc94PHk86uG+b5vqRLJVazalkUIWMjy+2WwOQDMSmCQeS4IP3Gqen0R0TQhWOp0zskCxT4jWltVKnxy2fq+XgjMkYxhxJyVuRyOR1m9043RSrRx4/FRQVMfFCleCGrGIIo6oPHCxRqncBwWVyoKszMCPB1FqW0TGKW5bZ5LTyNLI8rNIzyBcEcnzx8/pAI8YI1TdT1qywRRxpFHHX4+37SKiRBVHBIwFCIPpACAAAjOPJO7t+AXgI8f6I8tuJI/bO8uuHUPIr5Zi0GDr4LakTGRwGl4OFdA/n+kgHgADcX0JqiDoyabsWtb1fcniFJECwVlJAJAOIvHkdwe+RrhH8fG4fNeua0Q4cbT0f0/ASD2D3jd3VlK+EYC6pYD7nPjBM3es060m0000000000000000000000+dNNapP4tHpzzuf8AWbnN/wCEkhE25tgbDtCt/MEtibEYu3hHdURT38jFr3NywBjHd+2gPrz17tXSfrIu1bl70Tbp09tO4JL7eYihaxRfDZGWDVxnsQMNk9wNdhvgy9Rtpr+g8HTG4Bg209UdQxrOQhiiW/PU3BA5JBUk2CQDlcMMd8agW9W3TzqXhsXRQYvISpfhkjiFbgFmVHIIZSQFZkcHu4cHg+35AMck6j6b3Jfca9VQQqrs0x48UJwCQxyMjHEEHPk4wNb5em2/7FZntmC5CDF34O4UnkRxxyHEZUgjjnyR58RBT7e3tBlZ4KWBuJNXlllmj+lkmDxhSWPAJVuzgl25Hay+QD8yEbjsj1Ukl3CuVdVRJDOqlSSOPg5HnsME4P8AqZzY3W2s7pt09KpXjnZ5QZCvu84wVEXMgknA+rOARhgOWR5MVsLqFuCZ5quNt11EgDyEohUGZY/5aMwZ2B4Y9iOwXuckICR9rnUPTm2xKk1yKUcchAxIP0FhyYDHEjtg4B7fc51Fpd23KRzPNuUdEsxULDmSTs4IMaDI7r35E48qSBk6kS6L9EtzxY+K9Z9uxC8X05sySmL27TBS5ZgAZJI1P3x/0nkg88+Mdbv11tTV3hqtJGynkFVASyYJOGJCpzxhSBkdj51Guqer/fQVUnZFVovcd1/mOy+SO/l2BJAyMNjOACd/L8JPp9D049AvQbDRktLk8ZuXdNtyoUyWdybuzd93IBYfcoQrwzcoFJPJ1u96Cs03pV0rddPbbca93cCh/UPmtxtMpYkAklVBJOSScn7a4Q/FRvDb1679fWDI0q1b1DbY3Ygkpt+00a+BjGArBlIIzlTqSPWYda9aaaaaaaaaaaaaaaaaaaaaaaaah1/Ej29LH1I6abohjBNzaORw8ksDdtiIYrNTWgzoV7Crx5kpE7E8tEysO1ATy0+PHbJK/qP6b9QIsbxW+mdw2mYDJkVtv3hrKNIPIjcblxVhyblHIMAHI3a+FfdAenerdoZ8LDu9S8qSKDG7W6IiKhwCwKyUAzqMZVhjLZOoVPUHtqpk8JAtistuOOWcNXkURSIro/EoZQv39zByTyOR2kdpA1rXu95k2/3YZWSQwJxlzzUsvE445yF4rlCP6N3HbezoLcrENpwjlMiIkoxZWIYZTH+Fc4J/GTnIGYptwbBwkT2PbohJYhIFK1g4KvNyWLCRCCqs5LceSQAACePjtnU24FY+dpmVxGCDJ9QKLnB+llOcDAGMAk5OAdbDxXpZijySBst927g4wMYzyIJ7Dtj/AJaoaHBV4L1etSjirmv2GrYiqqhm5kYiaweyRu5O5o0Xw36fcD5kMu5TS1pJZ2eUOWE0bylvawoAjiAZOxP1FvwcAjB193nc5LSZ44yCM+ACMMfLAY7AgnGc/nKPYOGtV6iw0YpLE0hZlURuyySupVjGpXhGJPliqhCeeeBr9G0bO2548W9sKFV054XBjDMrDKA4LZJ5AEHydY43yyBYZrEn0A8mkYAFcZ7DLYb6CQQDkYJwNb1Hpa2l/A3pz6I7VPte5h+l+yobHsf+r6uxgqd+37ZIUlPqrkwViAWA7iPOuw3pfti7N6d9FbapU/LdMbMHZP0GSalFZkKdhleczYP389vGuFXqZu38c9Q+tt2y3G71PvMsfPs4hW7LDDzAJUN7US5C5A8ZONX81PNQfTTTTTTTTTTTTTTTTTTTTTTTTVlOsnQ/bHWTGV4M57tfJ4qG8MJka7gfTy240Pt3IGjkW1TNiGvLLEPbl4jb2ZY2di2IvVb0c6Z9WaVSPfFnh3HaBbbZr9aURtWltRplLMbJItiq00MDyx4WTCN7UiGRhqbdFdd7x0Rclm250erbev8APVnXPuxwux5RPkGKdY5JVjZucYLAtGwGBCX1v9DfX6GvYhp9Ok3xVX3vavbSylG6ZwD4LYy5PjsjGWUllieEygjwGPnXOnqv4XfV7aUkrx9Lr1FVUsiWundzq2BIoxl/krb07kQfAPF4iy5CDljOt7+gviI9O3MLWeopOn5XClq+8UbEQj8Eg2oI7NWTJDd+QHfJCggajN3f6POrlGxNXvdAussFqRvv/Len26MpEACV7YZsfStQE88l+6QLx29pbgaxSfRn1EoSCCfoPreKRG7KNg3CzH9Rx2evBMhC9sjmOwyMgk62X2v1v6KmjWSr1/0O8Qzx+c6i2ynKTgMDIk0kbqmfuiMR2BAPik8H6BPUPm74k2/6cesmRcOiqcltZtu11i/sL2txWMTDGpH9Z+4RkHgsQdSrbPRD1T3VVjh6J6wdG5Nxn2xduiP1cRzm3GWuEAJzhSSykk4wM1V74ivTbb67G56h9Ewcg4Zq26NublwMuqwbfDakYEj6GAHIYOSexl39KX4Vu8bFVbvXurW6cYeFqtmvtra2ax2X3rk5FdHlgy+dhq3MZgqEsLNDNHjXny/dyIp6ZC2Ds36afCVudo/Neoso2qhwhZdl223DPuU5DKxjt2o0evVgZAVf2jLYcsVRoQnN9OPVn4sNteYwen8sm/2iJo5Nz3WjNT2WsCGRXqUHljtXrCP/ADFe0Iq6AJzil5GMT8YzHU8Rj6OKx0CVaGNp1aFGtFz7denSrx1asEfcS3ZDBFHEnJJ7UHJJ1v5VrQ068FSvGsVetDDXrxL+mKGCNYoo1GOypGiqO5yBk9ydaCzzzWZ5rNiRpbFiaWeeVscpJZpGkkdiAO7u7MfsCcDsBr3aqNfLTTTTTTTTTTTTTTTTTTTTTTTTTTTXwgH5APHxyPjXhAPkDTTgfv8A7P8A+6Yz+f7kf9Dr3OPx/YH/AKjTtBBBHIPyDyR/o8jTAPnvj868z9/+nbX0ADwBwP8AA17ppppppprrlZ0ikaNVeRY3ZEcsqs6qSqsyJI6qxABZY5GAPKo5AU+E4BPnH/77An+wJ/AJ7a9UAsoY8VLAM2ASFJGSAWUEgZIBZR+SB31gxjfUr1qxeAzP8X9C89c3LBZ3IuOnwOCzuP27BHVlmXbYyMUlrdGYtVr9Z8Xdv5SgIjDBlYI2xNKzTy0OOiib5ukUMvzO0yyTq86xtBFMtfs2K3LvYleNw0bSSoAQJABCCknt7JXPSL07vbpQPT/qTtlXaHr7NJeg3bddtt7tI0yqd7+UsR1tl2yvYqSR3q9ShYMvuyUWlN+avb2+W5fnpF1zxPVvBbWzmP21urEQ7rxd7KU3vYTIHHU0xtu1jrdLI5c1oaNbIi/QyEENXvcTpWE0MrpNEWu227tHuUNeZYJ4vmI3kXnG/BeDvGyPIVVVkDxyKUwe6EhmBGsZdd+m+4dC7nve22932O++x3alOda241VuWPnYIrdezUoe/JYnqNTs1LDTAKY0sL7kacH4/wD/2Q==</t>
+  </si>
+  <si>
+    <t>Royal pearl milk coffee</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAEEAgMBAAAAAAAAAAAAAAkGBwgKAQsCAwQF/8QAMhAAAQQBAwMDAwMCBwEAAAAAAwECBAUGAAcRCBITFCEiCRUxChZBMlEXIyQzYXGRY//EAB0BAQACAgMBAQAAAAAAAAAAAAAGBwUIAQIEAwn/xAA1EQACAgIBAwMDAgQFBAMAAAABAgMEBREABhIhBxMxFCJBUWEVIzKBCEJScfAkkaHRJTNy/9oADAMBAAIRAxEAPwDf40440440440440440440440440440440440440440440440440440440440440440440440440440440440440440440440440440440456JEkEQJJEkowgE1XlMV7BCExvu55CkcwY2NT3c97mtT+V99cMyopZiFUDZLEAAfuSQB/cjgAkgAFiSAAoJJJ8AAD8k+B+/LR551BbM7Yz6iszvcPG8csL2vkW9ZFmTmEKaliK1sm8K2Ikj0tHHe5GGuJXhrhuaRHSU8ROzA5Dqjp/FWYamRy1KpZsQvZhglnQytWjbteyUQsUgU+DK/anhjvtViM3jems/l4bFjG4i/cgqzJXmmigb2lsygtHVDt2rJZdVJWCMtJ4G1BKg2J3T69tjNsMmZjRJN9lxYkds2/tcTgR5mPUsEkONYR+y9my4NZf2UuJLBIjVOOyrKU2OpDy3RGoJDVb1d/iK9I+iM3DguoOrsdUvSMyMDPGK8cvtxSJCbTsleSxIsydsMcrdun9xlYKpmeA9H+uuo8f/ABKjimjgZgsEdhzHZn1LJE8n0qhp4YI5I2Vpp44wzaWNZAWK3BwzrH6Y8+taqixjebCZl5c10KzhVEm0ZVzlZYV77SPBOyzbEFHufQCNKLSmK20AEJSFisYxV1YON9QOi8vPBVx/UuIsW7FeG1HVFuNLHsWIzLEzROVdGaNWYIwD/Y+l2p1Hcj0L1hiYrNi/05lYK9WeWvLYNSRoe+GQRO6SIGWSHvZFWdSYSXQd+2A5khElxp8YEyHIDKiyRsNHkxjCkAOEidzChOF5BFG9vuwg3vY5PdrlTUuR1kVXRgysAysrBlIPwQykqQfwQSDyKMrIzI6sjKSrK6lWUg6IZWAZSD+CAR+QOfRrtzjjTjjTjjTjjTjjTjjTjjTjjTjlB7hbl4PtdjVvlmd5JV45R0kAtlOlWEsISenCvajYsVxGyZkiQXtjQ48YZCyZRBhE1znLxiMznMTgcfbyeXyFXH0qcD2bFizPHCiQxqzMwLMpYkKQoXZdvtU73rJYvD5POXa+OxVOe7btypBDFBGzkyOQPuZR2oqg9zszKEQFm0B51feoX6hG5HVrkUrbmhxsh9vqDIDXrMfomkoIk49OjHw63Mby3uRzL6fSxJwJV7jEemjV8C0asgoZRYgYgvzq9bvVbrHr3orJVqHUuN6CxjyNmaN+m142hhKU4EU9yeCQvIHR0ksRsoAlZI1rsFJ5vb6d+kHT/Qc9fKZKO1ksvLXjoWnnWvKtezaiYznH1441MPcUeOtcM8jtA7BWQyqwxAHTbqWVvuCQVkBmQxvTRYzqi1fcYTj9PcCs51rjUW2u3gnw7a15hpGqa2sJQQ5DbBZECNCnuMejcle9ObvRvS2a6567z+ajxIhWh11UyOQWpm5ppbjW8fYxsKRXYwsrtUKywrD9Okn3N7jSLbsBhx1gQYvBVkq3HmkbE36aQZOGaCOtFXyjvXaWo0HYfcLPMbDkRBJP5fY1O7bjkuNkVsVuczcE24g2N7l2P21kOBMCxxZC2NTaGxOxDNnFpQRoBKiNgpJD6WsUMMikp1lxhSPJ4eB6NfKWenvSzrDJV416k6QxmTutiXyPTjtGtfudjRsWctCxiSm8EskMSSwq6spYx83sjXDwY6lZv4m7lLEeLt3amPa5HFdStEwmri5FNDWr2velF2W2sRstEzxiOSMNJ42+5b761jTMLpsnjY9RQMbqos6USPTU4DDspxY1FPkTg2kSNGg0FxDjTtzMjhRLwlbcds2asghxHk3T2CzFu9LmrkVGz1GMHi5sP01kWitZPorJfUSR5PGCwtuk9vEpj7J9i9dne4kc0EUlhGR9Yy5HjqlBaV60kaT5K/JbyMFeSSrlKsdeIQ3YZIUYrZnyEIBw9L/pmlrs0YMJTki/T59SXcDp4w/GMBiYvj+T7fzry/nYkO/srFR02NMuIoLbHsVyfHJE+nhY7iCvISsHkEJ4bMVok8NzAhRyBkXv0x653OkumasGMwkvWcFS9fimwnT6JNl8JXimCyVIqseUuCCtTbu9iG3bed1kjKTFGQGiOr/RbH9VZnIXbOUOEyiUqgnsTRrBBkbbV3kjtWIbtarPNcuIAbJpofZETh4mk90xzUdKfXltJ1RQa6tgvTC9yJhsqGm31tOWbKnRMRsEiWFtQWzIUONbwSRDwbVI5I8G3iwprHy64bGOK7Yr069X+kPUmlRlxFpqmRvU7V6PCXgYcmK1O0aVmX2GAZhBZHszjQaGXaONqSdduvPSvqfoGxZF+uLmMrPTibLVADUWW9XE8EMva0gjdvvRSHkicptJCWC8zi1anK14044044044044044045T+VyMiiY7bycTroFvkYYRX09ZZzXV0CbO9kCCTNYIyxxuVf6lZ2uVEa942K4jX+/jYP42N68bA+Rv5/b9Ocjt2AxKqT5YDZA/J1+3/AAH45pK72zbLc7fnMPvPUrg2N57Q7kHFkbc9tdwau/xmcGWYVtWto8opLijt2ha9Y1Eoprcbjva97YhCqQpNWc/6ZtezeTvt1eLMlmxYmmpZiO4U9pRKiwRLYSZIoXlaOaeaHuZ0jSGuIlOjuj0x1rHi+m6FaDoewaLUYYKtrFtjJVMriMm2ZassFtbCqhVYHV5JHcvYlOmDWaxvp93FxnPLe+o9/dqUxKEWyHYuxze3FZeaZGCySW+VZ2M3cOidSUFy4TKyIyFQ14Kw8dss0lRSmxnx68yvpdVkxNHF9RJ0hl476iplo4sjZoQSUO8SpFTjmV9FCsarpYEKmXxGz+LKq+o1O89hq+K6xhetFDPTjt4VbVaG/CgST346MyytX20rKss00yn2z90YKC3joPUFiG3Foa4342brZdplo7E0QG7W2Zz2tdHkSnsPOzI95GrIZyxpLIndBq5MuMYTpCRHCexQxW/6G+nuWej0taxuN/hWJmD0MdTzKgQQiPu/n1keI2V9ySVlLRF/5khYbbkkqdf2olfOjDZe3Z+geN5b3TeQSgkryFQYhHCyIoihhB75hD2xrH2s8jObg5jT0UjFKJm23WJj7LK6sfRW23O7+9Oykqkj4pGoyLEHAznBaaBY1TjTfJUx3UVJm8me2WGwvFrGFsXx5te9E/S3qG7g8hYSRp+kUrVcbHZy7tBSr44l6SyOJGRRBMSldBBKscHsxu6FNpC4fUbrLFvZWfphXGXMtx79Xpy+kz3bLL77QUZpHFhfaVHPuyRRq6sY00UPLRw7TeTKWwtvcnzzpfxV82vSqn5ZjnVHg0YMykIP0kuBXQFp7yZGsJde57WzyU17WAlJGnkhyThVGwGj6BVKnX1/rlOq456/ZNHPTsW0ileKRCHqvlITInsDx3O1f3Br/wCuRnYmdv6h4yHD18bH0h1GchMBJXY9PTyok8cnuLZTHyyQtIE7pPbrJbVO1vbaZEITnox4u8c24/w63B3I6ZCYbFqpsOc7G9/ca9XZ0SW1VaNgyoNfPqfO+WkEaTmTgJXTmMkidHpznjyoPPTfohhOjcrlOqMHfhaXP2YEyD2upVrF4o7cVlhBbrhRa7mhTsqSfy5BIY5ioIlT0Z7rrHZJGrx9P9Q1r1aP6lWbpS1ZCTPWnhV5ql2KRqUUK2G1PEzsrRxaaUEo+V+0u9g9q91B73Y9v50+Ynd1ElqU+TXOa4/YmTIS5GeFkZ24LtlWWtLJg5zgU+VXzq3IIWUW1dcBgT6++gSwkmavPD9Gx4Xql81hJOisXkfbilhvtWlOSavZttYzPuVaMKV2iyccsrAs0zxWWEpGy8oorPZxs30suEymH6zyGMMjx2KCxxtRRK9QLiUhy2RtG5F/Db0SFAiVFkgaTcDKPbbdY2gzW63EwKkzG6xxMZffRg2NbFbMWWyfTTI4JNbcDaUMeXDDZAMhgQ54RzBA8bzNTyN1tKvaRtTsEBvhgQSAfPcAT+xA1r8k75pTLH7Ujx7JKMykkaPcCQw0GYfaQV2GIJGxoEAXN1258+NOONOONOONOONOOcKiKioqcoqKiov4VFThUX/vT/bjnX6fqAdvI+3v1VoIceUePwN7NoMa3IuHQ2pJdJyIM2fjc6WkWYYsMZrA+PT5s5BxxPIV6HY4fmN5sDkcbWtSd0sSs7I2mIDNvWx5bfwV0ANaHgfb45Z3SPVGUxtA1a1iVYo5DpPcZU13FhpF0CQWbQO/Oz865gGXZvKBVsubBz0rxzoqllMPizWgRnYT4uJBugI3xtGTknpkb2sLwo0VrXRiz0Pi7ntGWEExEsrHuHYdljrRX8/A1rQH6kcszGeqvUWOM6wSqUnXUqFY2DEEgM3epJYqO3fzrQ3vWo19+M/t9upq4xOk11zARUeNnooQgoxUe5rmBnAnI1Vdz42se5zmpx+ERFxzdBYqKybSQkTkEe6O7vO9Hyd/nx8+PO9gHmWHrfnzT+ilaE1kHakBRQoTZ7UI0qgDZ0RsgaGwAAMZpPUMj0iuNTxSGhucELEgUZBiD28NcJzqztaqrwPlW8f0vbx7NXsnQtALIqs6Cc90oDN953vTgn7iCNqTvR8jyefCT1rykjQ+4kUrVlKwd2z2bXR0VcfKjR1/V8b889kHqYYKYCR+3YxywEcQD1rscc8Tu0rnojnUznNYNE570728q1exFZrlvT3HtHLDs+3MCZV24DDXydMAQ48MP7n5894/XzLRWIZTDF7tU6jfw2t+GKiRnII0CPzryDscqwPUfItrEhIdZAgWE0BBHnpGohlQCCQi+0ehGRzE+DEa0zO8j+1q8NI9Oi+nuKEEdZ4++GBxJHC3mMsG3vW/wdHzvQVdeABztY9ec7btT2O5VsWk9t5QT3BAhj7V22gOzYA8DuZvHc2zJB9Lqiq9/OujpU2SyDzScTzDeLGQ5HUhJBBLl0FbNHbXcRrwRgqrCwqyQth3oQcYZGi5myHKHUqxnTWNq2DZECNKyAFyNv2p29qkkkqu/kA+QDvfcRyvepPUnM5DHPUSf2oVR17UXS90nd3NrtALkt5Y/nZ3vR52uEOOCLFjx4wAxo4QiECNHGwII4RsawIAiG1oxBANrBBGxrWDGxjGIjWoiSzlKEknZJJ/U+T58n/z559OnOONOONOONOONOONOONOOaaH6oDZi1Lvz0Z754lHQ2SS8RzbbiWsphPto4ePZBBt60pXx08rX+TP7d8hyo93jjRCCY5wHK2L9QZX+GS1TtR70c2u4620faQBsaBPd+fHjXnfJ50bRN+K+qqztA0DkKNkLIsoJI18bj/7nfjRPIUg2u8yYuGPabfY4byVy+WfHy09c5HRgMaQaBNVPM0hW+N6BeVhkG4TYnCuV78HX64qOvZNJH7qMQAR2BkY634Oid72QB4H6Hk3XpC2x2kcgTt7iCCfLMfOtaI/UEk72R8+IV+qqoyi1yMki2x01A8ZmdgGmW1Gdr0VEesgIQr2Of7Ij0RHqnD1IfyKvvg6ip2JCEdCT+FkIH9PcR86JUb8/wBxr8Y670xdRSQJD2kEAx+fnZBABIBGwAT+3jXMKbDHzxkd3ud8u3ycjlNVGo7271Rr+Gs7hk7nt7Xdy+NV91Zk4slXcKA6kkf6h+N/+tD99fryP2MPegbuML+T+UYgAa8k60P7knWxo+efnhx0rXowjpbDvVCRwtqJiPko9Blc1F8aEINwiI5rmtcJrHDVE7XLr2Jbh8lZo3/J/mr438Ab15B+fG/IA5h2o2e5k9qQOXbt3G/ySASp0NgkAfPxs/vyra9iR54ylMcvyERjjskgEnjR6Ga8rEVCMYjGCVrezgiOOxieEoC9ZbtdI2buUEAntBGzv8HX4O9k+f8AbnpioWTIEMchLMBoqfBJ1oArvx8EbO/J882iv0wGz8DeD6l+JZhMfLCzYXaXcTc9I4Dy3BPMc2p23oIVg4oo6wlgnzdll4We0t4EC4bIx5MfXzxmRjtTvCvhlR20VAJUMo2oA12gkDe/nyB+jP46WlRWaTYEkqR+e4APpj2jv8l+xDs+RpTrQ52WSJwiIn4RET/zWc5DOc6ccaccaccaccaccaccaccgU+u1hgcgwHp2vCxiylqNwsirmDTtUKvs6eBPaju94xsK5KRzWFI/taJTJ2PVyIlPer8z1aGGsoWBFyeIkb198Idd68/5CNfps68cvL0Mrx3MxnKsiqe7GRSL3d29pOUPx4IHuDwfzoeN8g/xCpPmwpVEHDzS0oxNjy5BLCFA7J4vJDeMlQVXG7GzIIZEU0aQjRhVoSJ3eURqBvE1Y47U2UI+qBlSOKNnP8wB1AkOgR3N2FCN+CNaA3sZQsJaszUK2M3JTf2ZpJpERGKN2AgIGcFvGgD5J868cgh6m6ORu9u1k2Fba47Insom5MK1y2upy5BWFtccBCiycaoBoeHHsHQrWVFg3N8slIVKaey1lCZVsLKWSr1DiOlMbBluospVhMz0Y61Kzf8A4e3ZfcmO1Yk9mZgDHDNLFSCia6sLRQMZ2WMx6SvezeRs4jA0Wcwi39Rfhpi5H31UUSVa0RkRZZO+WGKWy7FKzSrK6tGruMNK3ZTCL4kaK3cZ1PZWL8Uq5uPSbiquszDPuSXMd0iPhmKU0yFcRRR41bZviQpcsUZJDwy5/nYotZq31tkqSzGDpwXK8dbK24sjHTnx2CePG16sghnzOWuRTY+SzJLYrixPFB3siTRV+0hzhY+mIbZhSfqOanZkmx1d6clqpbyiy2ZLKCVcNjqbrajhRYJzFA9khHaKWcMjKLaXe0NngyBt76xNMxabPM6jyuuq7ikjCjPtUq41jY18+KKTFBLm+OI+SN0eJXzVbBlyXSVG10ix3V2KzTT1aMyVcvWihW1hns17ssVhqS3pq0ctaSWOWWCFzJ2NIZrMCNYhhES95x46buYpoZcvEtvE2bMj1c1HWsU4jE9o1oJbME8avCtib7TII0iqzssE7lz28/Dx/br1V5NHJKwzGTx+BFV7iR0YMZEf2EUT1Rj1Y4DEQackUSpwRzi97PUDCtAU7hqNizAkByzFQSq71sfd2dxbWmOvxI4OjoFt2mmVW7pkMO/u7FEYLAsCC5UjSP2gKWKj+rXNzj9KJtVFrN9OqvcMUeO91Rs5gmGgnjaXuDDyvMjWzYqORgBSPVvwRZJSyY6y2OjjRr0G9/fI/T2zJcyGTkIYx16kSAEsdSSzs7BV2Qqn2gQFPxssN+BVHrPXr0MdhasQAnnuzytpAu4oIIowSQqqdGwPx+pJJ8jeD1bHKA4044044044044044044045Eh9ZGqLI6a8PuwsK4mPbvY4ZHDcNrRNtKa+qlKTyDeqtR8ljW9rmqj3Iqo/hG6qb1ihWTpmrIdfyctWO9/AkjmjO/I8HuA1seSDy5vQ2yYer7UYB/n4W2Nj+oe1NWlBXz8gIT4B8A/319995LtsunPdrP8Qlnqcnt6+qjxrOtaMkxDZNZQKM5o4HqqFluj2E88N5DxSNsQxy+uYITHD1nxs8mQy2PxtqNJoK6zAROSAfpkksqr9oLIpeMI7IS6oWcAkDmz2dijw2IyuTqSPHYt+2TLEBtDY9uB3GnXuIQSMvdpWcjewdiA3qQtsz6XA0ecbeKEx8wxsWJyMyHPxGNMBjGG3FpQVP3jDcMFKhU95lVZOq5T8nvLG3lTcirX3NdcWwJ0NhPrjsF096l2rGD6jT3IMTkDk4cZNVvusmRvwR3XerkslLHLarVJ4p4ZqlWGGMVJHrS14jG55gkyuV6OggyWH+2TIVRUmuiSuhSrUlauizVKitFDPail7zalMkrTQ98c7FQTFj+6NwKDfavzugiy6++h5SyVTxgZa2VQwaa0mnITHwZ66SlNHx7i1mxDznSh09c48kssYnxjiZczYrA5HoW1gr8sVmjZxjRXJJMP7N6azXhjX689P9otPeD1I3jhERuWPaVInZZVJhAu5il1dWzFWKSG1BeEteJMixqR1JpXJprlC6wx01aeSIyCVK8RkOwrqAb8bZ5iXfOpzODkWCHuH1UivFMyImbOlSQVNrb377jH6evi1tm+yDY3Vs2znWlRQzpWPEcO+iQZMqDW+jgfVGJj6Ev4Szj899At+C8seJjwqJBPfq0aBoZW9emsVhVanj6TV61a9kIa+QXVCWwqWJjLMcBlZOs62Xgv4NbApNXDX5sm0kiQ2bVw2cdQqGOc2FntW1nsT1qs81R+2wsDTwwPHa/EsjWjBVKcgLeQC1uKB7RNleCckGYWqhTI7LEUeZNLYKKP5PNFAcMUcZ5mBV5WMnVrHJdnnIDV4pK9a9pzGWhSeFLM0bGvJJCvYS8QEbuverrGWVVJ6VeoTVxVASyLYtizYxoZQ5M3087V4Zv5sccje5F2yEsiHRUkbLAb836WrDC1+znVLnRYh4i5Fnu22NoksTnSTOx7ErS9eR8xSox6ePMgcQxRY7I3PmYiMlMCCY+lyd0Gbn7gVNqrAhTQCiKF3ZQfk6aXzvxvZBII5SXrfJ/wDIYGszd7pQs2JNnZ7550Qkg/qYNKf9KqNeObVOrX5R3GnHGnHGnHGnHGnHGnHGnHI6fqoV45fRxnc4jGvTHshwO/RzuU8TIeVQRSiI5jmkb/pJB2KrO56o5UYx71Ruq39V4DP0ZkfgezPQmDn/ACdltO5j8aHadb3o7+PHLS9GrP03X2M1smxVyVcIPJdno2CigHxvuXY342PPNYjdFtnkmwW6VNSjktJKgQLnBpUSRMd6bKsdmVt9SQgCRRy648+whqABW+JiSZgCRyAQLfFq9i46k96g0c8Ug7Zq95CkZD17ETwWWLvtZlSKTXtEMT2HuBBIbajqP+JrBk4bFKVIXWGagydx9qaB0s10lVB3w+5JENOQFTuBWTzvkUXU1vBJzjZnFdwKbb7a6glZNtDle1v7ExwNZf5JPyqli4xXT7LKaO6htsAEqpNZYAxCyJbW2Yxh1ldCDHt2zZJa+I4npuGj1lcw9zL9RTRYzqXD9QtlLT2MXRhpSy5AxV6t2m4SVJxYiOQgeKDGTRzGVpoVjCy9hmJJ+nYMhDRxIktYe/ifoa8da1Za2sNRZJp6thdr7RV1qukkt5DWQIkxZmihLl7I7uW2CyC1t4SSI1jWRq7aisyeznXOQV15jsjLQ5FX49WmPQza1tdDfIlEeVCx5rRRJbQW5ocGRsKOuek6ueWG1T9ntrXGsdW28dSgx+PtUclHiHxtnI2VW/XttZlCRIFSOxXYzQNLUSSZa6m6S6ltYl/p7Ukhklhjh6dr3LE125DZqNfa6tOsZKstcQRM7rI7dkq7kT33jV7o7ZXsfAMApcoy3HJ+OXdRWxnY9mDwzcGusQv9v7CU26rMM+7UQsRyDcCyqnxCSK85JU27JNDDnmlKGdEbEupaDdR523isVlYchjrlix/FsCrV89RzeP6jqRJQnzwo3Dl8bgKtxJEisRrBDTEMkkCRIYZRIunrseEwVO/k8bLQuV6yjHZQxSYe3irmFsSi5Bivqagxl/Nz1mjaaNzM9xpIkl72WWFPl2fw6FlMSDk91KmXWRW0q5u7aTPe1x3WlzOPPnlK0KscCwlnM0c6YKP3NUkkgEG1sWO2R5rIyY2Z8ZTgjp4+rFUpVIolIjWtRgSrXWMsWJrxiNTErM32BAS33d3pwuHis4+lkrUj2cpL9RfsSOwJa1dmksTGVV+331aRRIAF7ZC4Cr4Udiv+nAwVcR6B7W2cjnrl+9WYz/VHYdJctKCnxvE3EkmOYiHUJaV8YSiYJBCE0BULIGY5bW9MkBwFmyEVBaytx17QR3LEIoQx348mMjQGhrQJ/Gu3rLLvquKt3FvpcVUUkgDTTNNYIAA3rUikEk7BGtDxzYA1Y3Km4044044044044044044045iD16Y1FyvpG3zqJcRs4T8MLMWM5rneRa2fCmJwrEV7XMRjnte1rlYqdyJyicQr1DjL9GdQFB3PHR95F13bMMqOfB8HxvYIPxydemUgj6+6YLP7avkVhdgxXQsRSwg7H/7I1v8AP681j6ymGPEYsKnFFhQSSBR5wJcgrkWDGkvc8XkI8pDSjeEcYRScjVGo57Aq9rG6aV5lSw5ERJVWkjEKAIZJFKnf6Hf3lgdaPbo6BO9d2BniT35h5ZI5XsP3MUR9oATvYPxo7+dg+STDb1g7b5JgG7Bt2tjcjqsFziwlzZk+mk1UOfjN9b2cI9ZPtvGg3nqLWVWq+JLOARoMhHkOSIGaR0x3tdcN1JibGB6uxs2TxMgiX3ILM1W5DDBMlqKItG6e7CthFkWLayMyIndIqiM46bE3KGSrZjpq/Djcmfcb2JoRPUtTTwtBJKVCO8ErRM4aUD20BZyEYluRVx73d/bu6nXtDjFfS28afXgq7CBc4WCGTHpoprcx+8w4lTFHZ5NkNkYFu6zDTxILrKtrplhTSSxGd8jvYbpPqXHx4rLZCTI0JYJZblaetlmm/iEL1/4R9DNLbklrYujBBJVarLYntmCxNFBZRZCY8bVi6xwNxshjKFapbieOOtPDcxscQpSCb+JG3CsCSTXrEkkcySrWghMteCSSvMYgrWolnvcoR8LObmJbVlLZXeQxsRrDNHQgyK8nz58i/PHGUAbW6NJmFYhmRwQYzWqYEPhnyk1ati8QwsYPHLUtXKmPx0+WsqGvy47Hwx1q+OSU7evSjRAfbMrSP3aaQAjnhXGXb8aDqG8L8Vee5frYiqWGOjyN6aWxJfmRu36i08kh7XMawRHbxxliWFe7R1M7HpA5LbB00NlIGNQkG0Exs4pHKFj5HtLK9EQrWMBHjdqMcYSFfx2c5q1FkB7QgEL1ot+4h3F7EaqCdf5UBHj7nJZgoOvI4xmNnxH8xbRtQWpCXSYlpkkkcs3b8ByuzsKVIRe7RI8dmX9EfFlxn6bfT+RRNF+5x5vmXCdqK9Mkza7msI5rWM7HKxGorHq97ERGuI5fxePp1EIuksWAAPcFiY+dncliQ7PgeW8nf7a8/PNUPVWx9R13nPu2IHq1hoaAEFSFO35/yeVH7DZA3rksepxyu+NOONOONOONOONOONOONOOWe6gcWlZrsjuri0GOSXOu8CyaFCii58smY6sMWKASIiqpCnENg2oiq56o1EVVRNYXqOi2SwWXoopZ7WPtQxqCQWkaJiigj47nVR++9bG+ZzprIjE9QYbIs4jWnkak7ORsKqSr3Mf2Ck7/APfNT9tVk0SkLXW9I6YNomosWVFIMgZMRBuYEnc6QqFZJ8nb3OAVhGohCOdymtG2hWCYEvJVniPtyFjpho9j96do7SPI0VA0NjS65vumUhuxJ2GvbgfTwoWVTrQKFXL9kgPgnyrhiQO4g7ic6hK2/sciu727rzwRxF9FBhyBuRy9yqpjq1/LFarFYNCsVV+TnNXlXIuTtmvFVhr1nSZpdzzSx72QD9qsQfHk9wH4Xev1HpwP1NjI2LtxDXWJFq1o2IKgk7lkUf0kFNKrAkjbkEnRERG/Rb2sqZn2tk1CGIHkglYv+S0iq8ScozhXPe1Ub2oqJ3EZ80XnPdJx1ZroWx2FR3/azEKGP9Jcb2R278fr/V4PPv1Zcnr0ZJKjqGQEtpVdu3WmWMnY7hvewCR+m9EWKw6hFURBGkgk2FhKjkmypTQ/NTFRVchlew5fTCaRwGhTh7iN+L0e5eJPlL31VhlikSKGCQQxIGCqUjAA8qVHc3aCSfAUEka88wmHrxVMektlnntWYjNJJ/m9yXbdgYnYWMN2qD5AAHkjzfHb/H8tnNGaoxSdOnJLcyAyHDkSDsevgd/t9w2tlFb2t7YzPkwjQM4Z8m4a1ZrCT2ksbVkBkHj7n7ZCqAIzsyd39Pf2k6+Bsc6TSCNWmaNEKH7WLMwjVtBnffait2/JXuAB+5tFhztLPp07fXe1nQ30s4FkddNp77HdlcJjXFVYsaOfAsZUBbOXGmCaq+KQMk9UKNeHMd8XtY9HNTaDpeq1PAYiuy9rRUIAwIIZS49wqQQNa7/g+Qdg80b6svDJdS5y6rKyz5K06sp2jKJCgZG2QykICpBI1rXjmaes/wAj3GnHGnHGnHGnHGnHGnHGnHOHe6fwvui+/wDZFRV/P/GnG9f8/X8f3+ORb57tnhEQGRNvaCvllq7G1YQ4YqsIYYZZnooij7Xvaqqi8uVHcuVeG/nWrOcx2KfJ5CDJwRSvBcsL7jBkMmn+wo/jRPnuIfyR+W2OXBh81l68FQ0rViESRQlV7yEUBF2SvwANa+ND48+N4C71dLey+SUkqymY56wJIfqXR2zSl54Zy1nej3PGjl4RUY5OXcOdw7VeZnD0ccHmprY0EL9qWnlUAqdaUmQ6J8AA6J8bO+WDieveoHkjimsowMoTbxID53sneu4Dyd6A1ojQPI6bvoV2HvaMJrfAI8UxRoUkMpfVpHKhfIxUMYXle8af/RGpy5qfFURa5s9R28eySiOZJCFEgWSQEflhsKO0kEj8Bfgn5InY6ls2Gau7QzxIx7GMaefBIIBcqP20uvOwN8oGj6G9ha6eokwGt8L3fF74yk57HI1GIqJx40Ve7j4tVURzeHo12vOvV9uZgDBIvedoztM4Yg9rt+R9vwxAIDHXgeeeyXL2Fi2kybUBQiBfs2p/A18634I0fwR8yGdLPSntjGzbD41RiGOAmyb+qiQgNjs9PGAk4DjzJZXAeqmYFnfwrUaJ7UYAKPd5XWp6fxDKZTHCVoXlsW6yIC32KHkAPgK4J0SQGK9pAAXuIPKz6x6lvLTtJ7k4iSCSSR/AZyF0qqO4dqljrY8ld+Su9bRLGo1qIicIicIn9kT8J/2icIv8+35XW8KhQB2/BAI/20NfPn4/87PyTzWLXnfn418+P+3xv9+eWu3OeNOONOONOONOONOONOONOONOOUDkO3GO5C85jCLEkyXK80iK9qIUit4V5gFYQL3OXlXuYg3vVeXP51Fst0jics8k0kTV7Emy81cqpdiAO6SN1ZGfY33qEY/BbyTzJVMtcqKERw8QGhHICwA3shWBBX9PPcB+mtAYz5v0fVmUx5EaPewwMko9HuNUkGVEe5r1RCRZaqi9ycqqdqKir8URVRK7zHo9BfhkhgyaRB1KiSSnuQEkMG7kkJ7gQCWBC7JIRSeSaj1pNVlWV67sV+O2VSN61sgxqNn8/j9tjfLAXn07b6wYooW4VREH+Go6uuF4Tjj3aM6Jwn8InH5XlV/GqoyP+GLJXJGeLquGMH4DxXj2k+fAUr8/J3ve/wAcllT1SggAD4gyELru92MNrf6sP0+P08/jWqRo/paSEsEl5Fu2wgkf3+CuxyTJ54XlEb9xtAMaqqiIq8LwnK+6+2uuM/wqOkqvk+sGeNW37dehLISPHw81mIg7/JDAD8fPPda9ZHaAxVsIkZK67msLsnyNntjdRoH/AEHY2v2/1DOzaXpa282mfBmwXWF5bwHNLGnWbwhBHkNb2tkR66INgmkby5zVkGldj+14+x7Wql+dIel3T3SCQGr71uxXcSRTWe1FicDQaOCIhAy+NNK0xVtsujrlZZrqrJZp5TN7UMcoUFIgxPaD/SXYklT5BGgNH48b5kuicJwn4T2TVlcjXGnHGnHGnHGnHGnHGnHGnHGnHGnHGnHGnHGnHGnHGnHGnHGnHPFyqiconPun/nPuvH88J/H864J1/wA+P34/5/v+wPwD+58frzDWV1OZxjNllUXLtjs3kx6+4uY1AXBqfJclQ1ZSzbKrIe3OSgjDWVPlwGTKr7KKwizqaR68ZEIwcc8abPWa8ky2sVbZRLKkRqRTznshkeJjKTEoBkZA0PthkeLuk7h/LEt/Q+j3TmYpYibBeo/TlexPj8bNlI+psjh8UBcyVSnejhx0ceUmIjrwWmguLkpas0GRjWnJ2F3lguXtPv8A0+50Ku5x3J6W1mXN3QGjmormTWR52PhiunlPcpXhhwY5DmNGjCsnRpqSIxo0qOCSNwk92OzEN9UIimjd5JYgPZlZA0AX3GaX21RB3sUCuVcOrKyhgQIh1x6YZDo6xaIyuFyNGDH4zJpImToQ3nr5d5vpIUx7WnntWIoY4prUlET1PbnjmrTTwESn/9k=</t>
+  </si>
+  <si>
+    <t>Grass jelly milk coffee</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAICAgMBAQAAAAAAAAAAAAkKBggCBwEFCwME/8QAMxAAAQQCAgIBAwIFAwQDAAAAAwECBAUABgcRCBITCRQhFSIKIzFBURYXYSUnMkJxgZH/xAAcAQEAAQUBAQAAAAAAAAAAAAAABQIDBAYHAQj/xAA2EQACAQMDAwMCBAQGAwEAAAABAgMABBEFEiEGMUETIlEUYQcjcYEyQpHwFlJiobHBFTOS8f/aAAwDAQACEQMRAD8Av8YpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpX8c6wgVkYkyxmxIEQLXPLJmyQxY42NTtznmO9g2Nan5VXORE/vnnzjx/+9/05pz4BJ8ADJP2AHJP2rRnnz6l/hh4510iTvXNesWtyxXCh6dokwG7bdaSv3NHEg1NGaQiEIZvwoaXIixBOVHSJARI8jMcXduSQsiyMCQyxneQdxHLLlPGcb8+MHFZken3jgOYHijbBV5QIwQVDHhyrbgpztCnj78VC3sP8Sws++vY3C/gXzZy3rdUcgAbJDuVq4MtRqquekkGr28dWNb+0pIyyYynaVIEqyr2x7SV79R/oP7kj+vt4rJGmgd5snyQnH7ZIOM9iQD8isQ8cv4nODtHLkvSvKHxR23hrSbScGLSbppcrYuQP9JqR/x/9wYaa/Ecle1yosi8pxx2Qv3fPUuG1TJ4sx3lWTA4C4yT8YP+2DwO/wCp9k01CiGKVi4wWEqhVJHldvIz4BDfOTU2OqfVO8Odx2Os1Op3q7S/uYRLKsgSdQvgrNrQqqGs45ViKIlaPrt873SOxFahHsIqDx9VHv8ATxIG2k8odpwcYDDK578FgRjGM1ZbTLlU9TMJUkAASgN27lCAwGeM4571kUb6j/jE7YrChtb3Z9dhwpDI4tputWnM1meruvYoJkF86ZFjjcvq6RaQIAVT+Yx7xK161rMrHGCOcAnseMjnxnn7feqGsLhV3YRu+VRtzDBxzxjP6E/843W1zZaDbqWu2PWLitvqG2jDmVlvVTAzoE6MRO2GjyQOeN7V/KKnaOa5HNe1rmqmXsj5+/7fNYZBBwQQ3kH+/sfHiveYrymKUxSmKUxSmKUxSvTbDYFqqSzsgp2+FEJI9vjcVBMZ0pZDhMRXlbGF7yHDaiq9olb1+cqUAsoPALAHx3P6HueO3mvD2Pft47/t96pz+Ynl15qeUheffE7ibT+ZKvyJ1bdt52RY3H4dUZpq+ONhPJTUkPet03u21mLrzY33talVuullOCYy3rWxzTyjuBCpd2aCSNUdJIpGEilcbVLEDJZQXGOA49sijII5UTMdrHA8UjMrxzRo0LnBDOMbtu1iFIflkkw8fKkNgMafPLkbceKd5vdXkQLOv5c0W9LEuocSyi7VAgbFB9myB123awWfR2Y3qZ6LPh2pIsgRHDeRBkIzI7GOMAYOcAKFz5wo4GT8AYxxjipLkkk9yOM/r8nnnk8nv278yFa/yrzhylouizayl42444zqaFK3aych2ez8lSdMtYdYsrbG1uhV+0/pB489kR97UPv31pTumvbYSJM58o5Likv34HcEeeePOe3PjBxVPOOfjJ+2f6/NZbwb9Q7xp4Ju920Snr7/AJB5V3/mKo1nXZUio1DQ9H1IEWvfrDri43KaG60iFTXGyzPkkzNN0Jzq6hgjuZNiM6uOvuXIyoB74OCR++D2bx+nbOKpLKCRkZGOPPPb+visT4V86fLbhfXObdR3Hx4492bjXft8vppbfY+Tt2l7VrDqksqoFB4k5AprayX9Ir7SOe0hWcGpdrl2U6yI8NlbIRE89gOGQsMZIzt55wvc9sA8/wBe1UYkYnPsAI2kEEkZ5yMduOc9/tUWXIfkzzXsGyy37XytzG+rZYPLVQ5+7SotMJfneRGMrNPFQFGQQnekiUOWiHIpjjihcQQQ05XA7Fx3+QPHPHbjH/FXADn+I88Y4wfjwD4zgk/rxVmv6Lvkf5ZcG7rApuNOUl5m8Ybreamu2eBb7hN3gxL3Z6akLZ33Hc2dVVljSwNXltLVztbuI8o1naRbtbGwMrY0wNplvxPby27q9skiLd2kgEhkil2gvb4G6GaHJYEe2TEkUgMbllzFi0a6sbuK7Rob4QySafeRKESOa2LExXSEj1orjO3eMyxMYpEDHerX5tM2B20a3WXbxMCSYIiFaJyvA4oDEAQsZ6qqvjGcNSgd2vY3N/LkT2WXdDG7ITkqcZ+f9hz8jAwa0ysoyilMUpilMUpilMUrw5O0VFTtFRUVP89p11+fx+f+cf38Uqpj9YrkjVeBvKWv403rhrS+aOKuV+NK7fYGpSBTNY3PTJX6ta0Owl0/eNYSNdV9bOmU8m1LXHdO+KSQ36c2FFY5r/DM0khhmUyp6e9OCGGGCEFwQcDIZRyeWbmpmxiElv6iSGGSKUxsR7g4YblZoiQuABsZgSx9oIJOTCLsdH9OCyuwb1poua/HbcYoChlwrXWdf5i0E7TPE4pSVBH/AK66QUIYon2ILShuJQmIkqS5ziNdQ6W4bJ9VMfykK2QB35wSBjgZBPfnnGaI5j7d8b/6smJuB/lYMO+c9yfAHIrpzTeVuPOKuZ2b5xX518Q8dK6zs7sMLevGrdDaezY5uqB0s1+TWq6VsJFsz6595BWHdSJdPHI8UtWTjKrxWy1uv8M2Af8APDKMcgZJHAJ5wATjvyOauLBO2eI3H8IIljVjjjB3EZwM8jGe+O+egp/A/jVa85zeZNz81vEjkONs+2kv9o12i1nc+F4dmyyYePNHIZUcYWNNrteAZW2A6bWNdJDn20ZpJsH4JEhxPUjgJD/UIQWGciRCORk7dpLcc4yAccYPNWpBIjspiAIVsMGSTaR2BZSeOckEjtk/bsqx4w8WpxvsNt+pFxHI0+MrY1frXE2mcuh2SJVsiqGLAWXL44s9Yivgq0bWlgwGRZAhK1QR0KhReslurZMxkDHjZFKDjGcb9pHt5z7c5IHkkUxrcTFtphUpywLoRtPAIBYZz9nGCfkYPUsrxo+mdWTv1g3K/kxzwxkSShquNSU+g1j5ZS9BJE2eRWyJaIvu38SKaJGaVjiGL6ucEPrPZqwCLM/8uDgEkjPcqpHOQPaP6A0MM2SktzAnf/14ZiuO4GWwRznJIGPOcVPp9BvfOI9/8iqvxl8e+ANd4b4n1Kp23lXfLa42a55I5L24lYysqxglXVvKLWa0O2tptPFsX1aTpLa9pR1JaJ0pGsyxIyKBHGkWFDFwSZPceF3EcjHwePB+Y6fHos5d3JkKqCRswTktjGSSQOCTz8ADN36LFjQYwIcMAY0WKJgI8cA2iCEImowYxCYiMYxjURGtaiIiJ0mWfk+T3J5J/Unk/vUbX74pTFKYpTFKYpTFKYpVWX+Im0rX9f5J8M+drIskT5X+5HEFj8QTGY4ZosLZNfe1I3sZXhLL2NSp8R0+EnuNrHMc5bbR3DuptyMqCWUkgkYPbnknOMfc9xmpjSbq1tzcC7Dem6IAQgcK28e5xjITjk574+9V/wDkjWtZu9elSo4aqzR0YqjkB+Mrvk/Ps5HtYqorkcjvVCgKNEVXIjEV7bjSYG2ZNriPG2RRkOWIwuQSMngEfy4zx3kBGJXcwuJIwxKFG3bgckk4xtxyTn5/cV9ef32dBspErGkDCJIOxxVEM4Go4iMD/MJ7Fa16e3o5H9ERUQa/IqIltBHuUgL2yAxIHblj4PHGOwz3rAuHuEQAFhk5O0EleM85J5BODg4zwa1nJvGxRpD/AIZYV/arF7jMXsXa/lU7T8KRyIrVRU79fx+7tboKhVwig49wwDg+ORwTj47dqj/VkBxuBw2T8Ek8nAzkkjknH/dftF3zZDFYxZwBsTtzyOjRunjcqN6awoyI9RtJ0xE/d12jFXpEXxiBhiCMkL7UJ+/IAxg+ST355xVab2JwUAC5ZchdwB4Cg8EjOTznGT4rdbixLi5hxHEmTZKKJGtj/wA54Xq5yKnQAJ7fIj3q5wxBRr2OaidIT3TDMu0lThuc5IHIGOTwcHPAyfAGMjAlooSUWQe1cj27jkn5AODjPck9+O1XN/4WbgibE3byj58slhR212q6hxPSwIo3Faq7JZN2+8O+Q5jGR3xh6rrwftAez0dMO2U9ShTu/DK0ikkkgHbknvjxjwFPb5zn4rA1FPSKRlcMcufgA8fJ545+2PirlOXajKYpTFKYpTFKYpTFKYpVev8AiNdOfeeKPB22DCQq6J5M6lKkOGnsrIWw6nt1E9HJ/wCPqs6TXv7d+EcNF6VUTLkMixzw7mxvcoAezMVJAHnd7eBwDzk8VdjiMqTbQSUiMhxzhFZQ5I+BuXnx5IzVZHbdHjSteBIaNgJaRn+pWje0zIyMcr1ecfvJUADer5DhOIhmuYrSNeNUySuIYplwyhzjAJGG55JyrBgAPgjgA45qm1uJbZg8MuxsjJBBUgfKsSuAcnkAjJHfmoaed+NbmdKkWoKEsqKQ0iGM8wEqVHPICEQXuGrHflEkIUcgqmd8BXqwUgxERi6LqepWWk3K2898qnAwrNh4twDIrMxAJKkHgk7SC3Pff9H0jUdft5LiCxeZlYhgkeVlUfxuFGCFVjjdgLu4HBrRq9o4cK2PABCp49j+0RAP+QL/AJI43scNRfeorEKiox7XIFfl/aQLyjauZVpqaOokDM8eM+TwWIXkjGCFJBzjj7VGahok0bbQqrKG2tGDGjDIB5XdknJIAIByCuc5A9jqukttZrRhqq0SIqqjxQJUgyL6q5w3IX52s+392NY5rFcREIQquINOrUut2gOxZgXzwgwSS2VH2yQPbkZyMAZqu36Zv/T9drVo0QgNJJkL7Rl2JxkbQRyeMEcgEVvRxPHLDZHIB0SSKO7+a0rPtob1IxzCiGCMJgUjvY5Ue/43tc1EcNjV9COyhGssf5u4GQqwAypjxgqx29/GQOeeOxrH9V4plMGHjjLA7uFmypV8DnCDsueSQK+gV/Ds6xUQPDbed1poqxou+80W5ms9E/lN1fVtZ1wkP5f6l+1nxJyuXv0aU5Gs/HeNKgngW6EzF91yxjbjBQKoBHnnufHwTisTqG6gubi1aCMRAWiF0xgrIzOWBPY8AYx4798mfrJWoCmKUxSmKUxSmKUxSmKVF/8AV80yt3jwq22rtg/LAib3xfYyXINj3AAm5QIJ5Lfka4bXRwzHG9ntVE+NO/VVRyaj1tdXFhoM2o2hIudPurO8iwxUExzqCrEfyMrMr8H2knBIArcugoYLnqS2s7lBJBfW17aSIcEMslu7dvkFAynwyjHmqtIuF7uVLt6K3iyotJr/AKk2O7Gxzo46giDc04SqB4HpLhjSQ0rnMWPEQ0mS+PDiBUi7/EHTY+mrfVYpIXv72Fo7ezaRATdoB6iyg/wxwvhSDh3ciIbXkQ1Kp0HeN1BNp7RSpp8EiTS3YjOBaux27AAQ0jJkMoyqcscgHMZvI1ALyP5hHqNHK1njTimk1HYLTV4t7Pm0U3eNQQdjFp9streqmxJx6iwtIFpYQaKGYcn/AKIWbsscMCaScz5H64/EPUOltJutVuBqfUWq3Gt2sFw9jCtyNOv2lje6tLe2nhmjhm+nmtrR554xApuYRZym8ijRvo/pLpu11y+t9OsGstE0yDS5XgFwxhbULUJIsdxLcRSQyvbu4mlSBHJIt5WuEMLZWP8AqB8Ly+RKLim20ulttrmXNbRjuYZNM1jjGRFi22xNv628BBHstzU2zKo8qFAng2myn2MeNT2MWxYyTE+CV1SXra26ev8Aq2w129tNJtrO8vHtJYdV1LqmGWWxsFsJ9OaVrGymtxdxw3Vxbz6fHDA81zDLA53lqbO36Wutat+nL7RbG51Kaa3gW63afa6OwS5u2u4bwBLq8hmNu00UDx3ErzKkNykiyMjJ0RyHqAtHrrSboVlJg0Tpd3ZX2mJY3OwLV149jtoSVdfsZaGNAGevraexsq0b5kRuwUMKRI+3LMUQydR6E6nmv7+yi6hhFzdiPT7ay1mSC00+W6lbT7adr19OGozXAWe5vILe7QRyix1B0hQrb+q6ct6y0f6LTbpNDu2g04Pcz3OkpcXN7HEkV3PB9EuoPZxwlo47aeaJUmhW7swJ2VpBEX2Y4uIGXRglB9CgsIYzjbDarFVpBoaPIH+GvYiq4So0LlErXuYAinP0HuA9x5OC3JPgAjezceNuWyPHIzXJByBt8qNoyDxj2jjgnGAAOSeBya+j39D3j5/Hf02uBYRo7o0rZHbvusxjhPE18jZ9xtpqOEx7Wr8TAtEBionqiCVqKvSqt60kWaESodyOzlG8FQxVSM9wwXOe1Q+po0V5LE+Q0YRWBOSp2KSp5PIJINS2ZlVgUxSmKUxSmKUxSmKUxStLPqIVz7Hwy59cEbCyarS12GKwr0GJT6/bVtr0V7muY0bhxyNer2q1EVXORWoqZC9Q2UOoaPf2dwgkhng2ujEhSA6k5xg485BGMDkdxP8AS97Jp+v6XdxHbJFcjaQAT71aMgBsqSQxAyPP6VWD5q5PS68MucrbXlZWbDUaFdV0mO56gfEbNlRKEtgjuyGJWlgSJrkmqjlSMxy/jsbc+aL3RJ9J1uwtbjdJbvc7raQBiJQMt6YyT+YzKqBQwZ2KEHcFx9NvqsN7oWoXNmfzVs9jgFcozkIWZtuBGFdjkgBfkcMYFPL3ifaabRNEjaPFteP7Hbabd9uPpsCs1vStW2XSqmREvIsvXi1FjPvJkfWa2QtnOkbpJhJHLOsqmuKWPZQokvR+kNUsZ+pNWl1sWep2lnfWGlW2pXMt3qN3Y6rcq9pLBcpcolqj3sipbwtp4lP5Mck5jNq0gz9QhntNEsItM+otLm5srq+ks4Vt7W3vbG1AmMkLRO00wtVk9SY3bqsbSOsA9yq0Ou12obXbA8hP5FlyCSLmpu59lMcf/cf7+C+CWXYwogat9EeyZKZMLRyEslrSRYkNLSRAklJGd32ztJLPTH6ei0CKJIrO6s7e3gx/h57WZZkhgnlE66gkBjaOPULd7c3IkkkNrDLFsetCnvTczprY1c3DNcRXM8rMRqyTRtG7yxQiE2kkgf1DauZNgUATvGze7Y7hmo3yyoL+Tue33NJU3NrpeyUiTotbF4/jmkuuJkbY+S9xiQyxdWlW1AOx/RJKOtrJts2Ca1rBosQjec9S3nT9vq+mJo+lWF5fWljremXAimmfXpY4Ws4ZtL6d0mWaL662tr2S3+vGy3gjgaVbW5z6qnY9LstauLG/mv7+8tbS7n02/gR44Y9JjkkNxJFe61qEcbfRSz2Qla0bfNdNMY5LmEqUY7eeBfFU611OPtl5EefUtQmbElZ17yqu0m1U+xSojjmPEyRaUseJFJJJPfEEWaEMNhAI6SqR+7a/raWejqUmH1t3aWpMZVI7lfqoY2mJhiZlhn9zlot+1H3JltoDcg6a0WW71RN0BNpbT3eyUFntXltJW9NVmZFMkO/AVzGCUUF1jOQv0zPBnTk0LxB8c9WQqH/T+JdQOp076kOtoCXT5CIqr6pIdZKZEVVVEeiK53Xa7XpKenptinIAtYGAPcb03gHgHOGHcA/Iya0HWZPV1XUZM5zeTjPzskZOMcY9vjj44ra7JGo2mKUxSmKUxSmKUxSmKV0X5O0Atn8ducKIzEKyw4p3waCcnbTPDrdhLGFyJ+VaV8Zo3dfnpy/36zD1EO1jeCPaZPppjGHxtLrGzKGzxtJADZ4xnPFZ2mOqajYs5YILuDeUJDhDKoYqRzuCkkffFVIb2z4103xXsv8AUNRDjA3/AFKTUyauEnta3s68qfiOGNLkOJIe+CpGTfmMRRQ/tAyHMeQbUd8v6VHrfV+u2yS3BZ7eVZHkz6draRRSguVjQBRnIjAILHcTu7g/U+rPpHTGh3TLBhJ4XiRWyZ7ppo22Zfk57HBGOOAKqkcp7Tt/J/8Ap7hPdtx2AvMVdbbXoNVsW+bjFkaODjO3q3rrhKAUxJViEio19dbXbo9jMCdzK0ls2TPjih7bruhQ9D6nqfUcGkW8nTkS6fq09noumSHV7nVrS5/N9eWB47ZoysvqwWbSQRNtaV4tkDmXn+kapJ1TYWWgzajPDr0sl5psdzqN9CumQ6bNas0XpRMHkjcklLi5KyThW9JHEtwqRatcYcL6xfxGaVNvnU97btjW8Ter+1hM1mDX1tPbMsodVArbCXCvIdrewmE1u3bYxXzqCHayDR4s4MMJ6eruuNY01m16DTm1TTLUPZTdP2FnNJqk93dXVsLSWa4uYo57KazsZnivrU20wS7e1iilkgaQx5vSvSlhcxrpB1GTTr24KXkesXt2iaVFa29vdfUxQWkTvBdQ3d3EjWN2Z4xJbJcyOEkWPdsNxtOmiotU4r0XbUkXU6oli3xKoVxTRNTZU3VhXU2y20eW6zotqtNn1ydYQqehN9ukRbCPZCA99f8AqbdTvNJTUda1LqbWNJFvYW11C2izXbWd3Pqq3tjaz3mnW0kCw32mwWV/bQPdXKu7ztDLA5QSNbpvGjX8smn6f07pl8JL2S2c6x9Kt1bwaabW5lggurhZd9teTXlpJKIIHChGkWVNwVZTKXuO6n434Q1Hi3SFdCtNoWm0yohw61k0FVQ2botY60kJH+yWferZSm1MRxFcxSnlEKj3DU2T/SGm3Ov6rPf6hLJNZWUxlaN3fE1459WOLDBj6MQ/M2HdxsVdoyK862vbTQNMt9PsIIre6vITFHLsYNb2ccbQSSLg7RLMxCZ5ZsOSWI4+lLxlq7dI470TTWtVjdT03VdYRi/F2xNf1+up/Rfgc8HbFhK1fhe4XaL8bnM6VfoxF2Kq/wCVVX/5GK+SpX9SWWQ93kdzjt7mLf8AdZxlVW6YpTFKYpTFKYpTFKYpXq7uph31PaUlixSQLium1U5jXernw7GKWFLY13S+rnRzka13So1yoqoqJ1luVFkjdGGVdWRh8q4KsPtlSRnsO54quN2jdJEO10ZXRu+HQhlP7MAaq0eS/iDYapqlvxJs8KVLpYlnaj07dIgmuHDbEdJJUSVapPZhnRFHDsK9HdFb8o1f6KMyfK7Pf9B67c30R329tcTo5IZYriF5izRyE4WNlTaxDtlCF55r6lt73S+utDhtJykdzcQQmSLcvqWtykQxJGNo3oGDbNpwyuRjIwKb3nh473msbMCq3WsAwI7E7627cEywLFnTmsPS2YmI+OVCoFr4ivjyGlKxjEeVj1b3bp3rHR+pLYXOnXA9T+G4tyQZbdjg7ZI8jMbZx2ZZB3BArk+v9GaroshW6tzLFnMM4VtsgGSArHBVwBkYIdTkDODUXMSqupNsevi316R9je1U54RkjtPKsaIDq6jKMoovzoWENqxwsaRoXOGryCKRBndIzWGlQpFNLZ2+y2try1TKuUW1vmM13GVLlcTSj1GdgZNxIV1X2mKszqt5P9HBe3G+4urWdgJEV2ubSMxWzo+wMphRiqxIVQ53MpbkSUeNvGYNBiVtLEhLHs5xmzbJoQj6WSZPiZHZ8SkKRI8btqOf12Rpeun/ABETiXVnUH+IL55IWZ7a3Jitx7gVVWyxYHB3sy5JbJAUAMVOB9I9F9Kf4U0sRzoiXdxtuLp8jG9hgKG53LEh24BxvLZAIFWUPDL6fUjyz5F4Zh7nX2FBp+qbzre32tm5ggz3wtbkQ9gl0sBsgbnuJdsqEhK4wzDiNkGlhb2NFJa6BTVR1FBFbybbG4Lf+Q9RdySrGpkX0gMYnAGFdcFVG1w6cCE/FDWdEj0K4XalzqaLtstmA8LSn03knbsIRkloixGfcuHJarzDE6b1/TtVcv8A8ucrl/r/AMqufS9fJ39/FcsUpilMUpilMUpilMUpileFTtFT/OUsCVIHc8fp9/270rV3mrSSznfdmqB29YawFKKxRieyMrmq0hSoZPT2Y/2XpURSMd01yu9m5zTqLSZobq8uGt0uLK7JkYlVdYSUCsJg4ZcZBIOCOftztGlagBFEiztbz24AU7iDIqncvpshDA55xnCkFuARUYPPHiZwByNX2ELceMNbtYlgE4pYJdcoBEGcajK9qiewY3qj1b8wXDInfsx6KiZwG+srLQtTOp6XE2n3ClmDwyS2seA2C/5biAoGADAgoTwBXWbPqLWr2yOm3d495avt/LuPSuB2wAfUUsGGSeOQeQSc4hPL9H/wv4t2XYdq1fUrUs+2mHkQQ7Dtki6r9YjFRVfX67Gmp7xgOL7EfKnkn2jUd8DZ6RmsE3D1z8Vuo7y2gsJbqySCPCyem0MT3BVWAEzGUlhgqzKoRSw2hCTmpHRdItdOu21CCBnuGBVS6vIIVJBzEAuAxxgsQWbPfBIrP+EfFrivWNtIyr1ukMQcpCDR0ZJhBscv7Wuc5ijcjemuVSP7VU76/GYGn69JcqjO8QWTCssDBhJkkkjZxgDJ9xAUAkkGpnVtT1N4yrTzqu3gsfTRMg5DZG48EggA4yvOKsheGfBqagc27uq1gDmwfQJjh+J0syxWQY5IYF9WsjxIXyjQw2tY9TuaN5Ec9yfRP4faTd+u2rS2v01v9MYbf1VKyTSNjMiqVCqqJgFgADuypfLGuG9V6kkkS2AmE8yTGSTY+9Y1OWwzZJLSN4LNwM8bVqRDOu1o3amKUxSmKUxSmKUxSmKUxSmKVxc1r2q17Wuav4VrkRzVT/CoqKi//eeFVPcA54ORkEHjBHnj5oCRyDg/IrA73jDRdkaRtvrsIyF9ke6O6TBe7vvpXLCNH9nJ2q9u9kVf/X+veu6j0n0/qm4Xml2z7uSUVomJz3zEyDnn+Xuc5NSNvq2pWpBhu5U29gSHXA7cOCPtj447V03a+HXA129z7LVpZkcqq4bby0ENf+F+M7X/AJRVRV9/b/n/ABqE/wCDfQFw5eXRmck5wb25Az8nDcnHHPjAOeTU3H1v1LEu1L9RwRn0I885xjg4xngHcM+MZByrSfGXgrj6Sybq/G2vRZo3I9k6cyXdyxkb/QojXUmeoCf3RwEF6/n1RqL1mw6R0D0jobK2naDp8ToABLJG1zMMDw9w0oH22KmMnA5qNveotb1Hi71K5kXGCgcRqR8YiVMj5DFgfgc572axjERrGtY1ERqNaiNRGonSNRERERET+iJ0if4zcAAAABgAYGOABxxgcDsOw48VC9+9cs9pTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpXFyqidonf5T/APO/yvX9+k/t/fPCcf32+9P7/X7A9gfuePmtNZXk5vGs2W1Rdu4O3eTHr7i5jUBdGp9l2VDVlLNsqsh7c5KCMNZU+XAZMqv0UVhFnU0j78ZEIwcc+tNr1zbyTLdaVdsollSI2kU852QyPExlJiUAyMgaH0wyPFuk3D8sS9+h/B7pzWLLSJtC/Efpy3uJ9P02bVI+ptR0fSgLzUrSzvo4dOjj1SYiO3gumgvF1KW1mg1GNbOTYXeWDsvifn+n5OhV3eu7PS2sy5u6A0c1FcyayPO18MV08p7lK8MODHIcxo0YVk6NNSRGNGlRwSRuEmdp2sQ36oRFNG7ySxAejKyBoAvqM0vpqiDexQK5Vw6srKGBA1Drj8MNQ6OuLojVdF1Gxg0/TNTSRNTsIb57fV3m+khTT2unnuriKGOKa6ksRPaenPHNbTTwESn/2Q==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,6 +202,14 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,12 +232,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,17 +518,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -535,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -561,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -587,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -613,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -639,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -665,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -691,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -717,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -743,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -769,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -789,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
@@ -809,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
@@ -829,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -849,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -869,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -889,73 +934,145 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" t="s">
         <v>8</v>
       </c>
+      <c r="E18">
+        <v>44000</v>
+      </c>
+      <c r="F18">
+        <v>4900</v>
+      </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
+      <c r="E19">
+        <v>44000</v>
+      </c>
+      <c r="F19">
+        <v>4900</v>
+      </c>
       <c r="G19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
+      <c r="E20">
+        <v>38000</v>
+      </c>
+      <c r="F20">
+        <v>4900</v>
+      </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
+      <c r="E21">
+        <v>48000</v>
+      </c>
+      <c r="F21">
+        <v>4900</v>
+      </c>
       <c r="G21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
+      <c r="E22">
+        <v>38000</v>
+      </c>
+      <c r="F22">
+        <v>4900</v>
+      </c>
       <c r="G22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
+      <c r="E23">
+        <v>38000</v>
+      </c>
+      <c r="F23">
+        <v>4900</v>
+      </c>
       <c r="G23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="D24" t="s">
         <v>8</v>
       </c>
@@ -966,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="D25" t="s">
         <v>8</v>
       </c>

--- a/src/documents/MilkTeaData.xlsx
+++ b/src/documents/MilkTeaData.xlsx
@@ -5,27 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MilkTea\src\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MilkTea\src\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22438301-0585-4A91-BA3B-1606F9E54316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4D39C6-5DDB-41D4-A3D1-77433D088498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="267">
   <si>
     <t>value</t>
   </si>
@@ -156,9 +166,6 @@
     <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHQABAAICAwEBAAAAAAAAAAAAAAgJBwoBBQYEAv/EADMQAAEFAAEDAwMCBQMFAQAAAAMBAgQFBgcAERIIExQJFSExQRYjMlFhInGRFyQzodHw/8QAHAEBAAIDAQEBAAAAAAAAAAAAAAUHBAYIAwIB/8QANREAAgICAgIBBAEDAgYCAgMAAQIDBAURABIGIRMHIjFBFDJRYRWBI0JxkaHwCME0UlOx0f/aAAwDAQACEQMRAD8A3+OnHHTjjpxx0446ccdOOOnHHTjjpxx0446ccdOOOnHHTjjpxx0446ccdOOOnHOO6d+3dO/69u6d+39+369OOdLodJQZOmtNFprevoqKkhmsbe3tJI4dfWwY7PM0qZKM5ogBG38ue9yJ3VGp3c5EXwsWa9WGWxZmjgggRpZppmEcUUaDbO8jaRVX9knQJAPs8zMdj72Wv1cXi6ljIZG9PHWp0akTz2rM8xKxRQQRhpJHcg6CqfwxOgDrAnHnrG9L3LKnTjfm7B7D4Z1jT1p7X3fthlKoQjtEKIS1rpZWuZA+ckdLBRlWEshoiK3Wl868QYwAeQY4LZLLDK8pSuzIVBU2XVa6N96lVkkUuCWQMoJG7eRfSj6k+JWBV8j8Lz+IsmIzLBapOJXiVSzyRohdpVhAIsGMN/HbSz/GxA56vc8+8bcdllfxVoYtdErYxZttPeqPiVsMDPcMeQ4aPJ7Y2I5Ve1isVWuYxzyNcxur+UfWPwbw/KpiM1lhFZMRlmMMTWErJr7TL8BkdifanogAZXALFGUQeO8Pz+VpPfqU3NdT9pk1H8g2wLKZOqlVK/cQQQGU6AIJ6biD1W+nXnqVKr+I+X8Zt7SG1SnqKywdHuUjp2X5QqezDBs5MNO6d5kaKaMir293v1K+J/VHwLzad6fjfktDI3ow7NQYWKN8xofcsdK/DWsywhSGaaKN41UgsQORd7EZPGgNdpzQo3oSaEkW/wBD5Yy8ezsaBYE7HrfrmfByoxlc0RxEcxO72jIwjmornMRXNY5yt7vY5ieSJ3e1zU7uaqJvvZfzsa/O9jX+Nn8Df6/vyNPobOwD+9H/AB//AKPXPo/Xr6/99jR/3B9j/oeP/P8A09j/AL/vjpxx0446ccdOOOnHHTjjpxzFfJ/MmH4jo5N7r5xggjxpMpYkIQ5Vg8EYbiOKyM4wf5b3NaJhCEYP3Ht8nNZ5ObWf1G+rngv0spQXfMMsaQssfhrV4javPEG+NrS1EIkNZJesRlAIMjqiK5J1tHi3hvkHmVwUcFSaeYkIHlJhgEjAlYjMQVErKGdYzpyisQNgjmpgb6s/1VN/6y7C4494dsONPTtENMh1mS50xEfHcfEypzlpa3SzdjbTqbTX2mbMFIvQQcqSWa7BGUdbXBiKwZ6R8v8A/lH4LjcPLfxXnnjrWbFg0cfFSRvJClyNUlaO1j8Ys9qNAssMdyW3JViqS2I1L90+M3a/0Zo0sYta8l5sr8SzmaFXUyOJkhki+8fxoYwS7RjpKZFjJEgAZzPv1IXHqc9WvD+mv8fzHgcpxjpaUdHajJZX8bH6eRAuC1OpCej/AIfk3/2+qNXlDFgvKA0mYhklSTgAaxHWuS+pnkmVrZHN5zyqGfAeQJTapjsfHNUo08bEokQS0J0W0btyaF3A7CSOFY5nIgSWY3l9Dsx9Jfplk8RPf8Ayfknm+Ks2bFW6wghsUbgqKackN5rqRxtNNMTKTA7V44khhJlnMEtdGUoScI8KE4p4E12Yzm81F+691G1ouKtS4W7kRY8eBCsKKidf3tpHJVUgpcpxmLPimlOtLEcardd2MgXJuf8AqZmPNsxXo4+h5FT8fpQTmfE4dqkkzzxMzfybdyuSsNcRgSMAI2i+VQ0nUrux/qbH5P5rnLHkz5ipiP5BSOumbyq3p8cs7LJ/p9e2lSnHHG1glhCB80n2VxI4jiUSc9PmW9RfOBn8dclcqVk+hPlLqwn6xMbaSau544ZFJSVF3Kfp5MeWPa28yZPhrDqYra8MFqHhy3HkHlEvTxbF+LeU0K5yUfk1a4nj7ZGxkvImqRJRtVpLFdkhSLvYmkX5nXH/AMiaUss0svRHYMaJzUVnxrGGTIDC5O0uSGNWHE/L/LvmdYZmew+2qxICoe4RGFdo4kTswl1BvlP0JbnE7XWQuA2cq2dbU1oa8F7xEG6WQ0V+FYjZ9G8k0F1XXxmSJkdI+d0J2U/xyWhvKO4/ho+GhzGO8mo3sXiL3k9fF5CpdxnkNBZa9hkMkjBJooykNhgyzJL3M+wslduq9g2r0LHj2Lysk3kvj9ixjB1+bGQ5GOpMCPXZ5WrywyjoQTEK8ayNtdgkE4/9M/G31APQP6lay14q4f5h3PLu6p9dlMhmeevUFon8OXwszmLi+19pvY13NrpA5T4wIJ+OJM68rMZb36S7Grl3EsAn9drePedWYb8TZexF49aSrJI2PtPE9i6Jo5B1gr/yRHkjXAeaQ1P5Eh+OMMvRyrbd9VKf0m8k8UxVjwa1lrfyyiXN1bmOj+fDTL8LwfBkIK7QVTNYZ61mOWQdNKG6KmuXB+mv6yfqCdYVcP1VenefWxIs+9zXKreOaeSTT8N7KldJV0K1rS20il1WdOMEU0i1pJqMq4dkKwfaWEZgUlahH/8AJLL+J+U+QYfy+Gr5FhMdXN3HXMBUSh5FdrmGOVFrY61ahoXSxZkC/JVsP9zxJ2Uw8oiD6R5LPTV08fjkgjs2UqrcychTFwyMdN/ItJC0sSR9k+SZUljQsPQ2AdiLJaau2eYz+sqWSh1mkpqy9r2TRNBMZCtYYp0VsoLCFaGQgDDUokI9GOXsjnJ2VewMLk4s1icbl4IbVeDJ0at+GC7EIbcMVuFJkjsxBpBFOquBJH3Yo212dcqTIUpMbfu46Z4ZJ6FuxTmeCT5IWlrStE7RPpS8bMpKOVXsumAG+ei6k+YfHTjjpxx0446cc661SWsE6QVRJStX2u7kZ+fFf6Xua5rX/uxXtUavRqP7NVVTzlDGNumi2vtBJAJPoD0CT7PpdaY/adAk8+lCFlEhIQsOxAJIG/8AGyP+v6/P+OVh8pYDi7k23jRuQG3FtOpZYklusdRP7Wb68zCMZbxIU9WWcVkqOFz4jGkj+MeONyOENrOuKfqJ9P8Ax3zbMSTZKKrmslXVaMtqfN/HkUNcqAHhkkEkEkDxqQ9QhlaOMjRXnSHiflOZ8cxzJjicZBdjaVVr4pDD1mDg/wAewYGaPvE7hWJj7dpSDtmJ6m74U4pt5dPbli5sljnpkixplvY1ZdNr5U6O+MSVDrdPAtK2LNeIjmxp7I/zAOa0sYojMY8ej4b6MYHxJ5LPi3jlXC2Ximgms1A01kwShwYu91Z4vfclZU3IvZniZJCWEpN5hZyMX8TJzS267NGxjm6wDvD9sUheq0MrFUBUxkr2HRZEMYRD0XImIfpMhSZI23fSV1RI+TKm09bTum6MgSlNBi3BpgX1q1cc7mSJldWw4EWeaNHbKRscbQdQ/kPghvYQYK6LsVUw2ILVyOOSbK3vld2j/lW5Cw3XDIY/jSKKdlZplkUqqTGCytOhlpMtVgSSWUoa1aSaSClS0qiT+LAhVwXC6EjNJLCnZY5FZi5h4HhCrw8J8eDzrYydbYMmwrnX6Osj21sSgsFY6zqM9XV91WwsuOUFSDI+uGUXisdz4zxRkY/QPHvpx4n4XPMlCTKBbARbMEtOeUW41DEpOyF5XjZmJmhVik7Kjup6gHfsr5TkvJljNjHU4q8JjavDTkSKFJkXSzSGVGeeZAGCSS7KiSVTsOCuK3cF5KmPoLOq9S20p7+8jZ2rHaCrbm4LVUOXdKWFSwZEq2mWz4khslzpyus2/IIxzhtaNRiZIZnwzx7yOzRsyZzyWhLULiX+FRyZSwJF+JDLtJnCwRFkiROq9HdHYr+JHGeYZHE13qnxvA5CsklieGG7PjVCzW+hmlVZBGkkhZVZXfuyMWMQEhLnJ/G27z/C6S5MvmbRb2TIrxUrW3GDtaypCMCv8ZMdiTgznz5X4bay0mObPRoht9liPVdvwnjmP8fpCvibflFuRq5ruZ8HbSGSF3aT4UR/hEcPfanr90kXWAuY1UDSM7PLn7kk1vH4bFxmQTqkGWruysCA6gKZvwo2g2fi9uF3pl8FL1llyDuS7/kbmXTbstRpAX2FzmPzsnjOhyzoYXxK6uaKPobWxuIMOO7xMGTJSLOltWVMAUrE9rLl8at5nNRZ3J4TKZPJVpK7Y+eWF664/wDixCGNaUTMEpwIgCIsahujakeQqCPqndo4TG2cTjbGNq1r9dquRM8q3Zr8byLNIZpWjC/I8o7MwC6VuilFC86O5w2HvbywuZmX0c6ff/a3yX6Dk3R1ldLJVsSNHmtES8ixgPfHRY88sZrEnAUySWEGd/uSx+nFXJW1v2/GaotBI4llyGQaFJfjdXQzK8yfKVdEJZkIPVQG/wCbnnD5fJjqaUKuYda0Ly/HFToLYmjMxb5EikEcpRGZ3ZI1cKjHsqduWYehjf7TVay5y1LrsrY0mRq6iNaZahtC2Fdj4CnbGrmHKUjTknPixDRIldGhJEKxqTSW7RjQBuovppby0ss1SxlaV2OtBCktOm7S16SdtIfmIBkk+0Rxxx6XortLKwRQ1C/UGvjo4YLC4y3VnnmldLltBHNddgS4ESjSK5PzSSSsWUAJEimRiLcern/99/8Av/b/ABypR/n3x0446ccdOOOnHHQ8cq19U1Cmb5EJYvtYNFAvwtsAPm1MOyqylRyCkKb346EinaRquJ7coHkNrnNejnd14p+tuGbD+XvkhBUjp5WITxuYImLyhQtjsHMZjdpFL/IAVA9h2Yvrpj6W5Fcj46Kg/kS2aDywyATsp6kfJEsRUt2VY9KVKggrob/UaXxrg4HuoLvjG9V3d6MhS7zPGYjF8kc8lTfXoe3dFTskET1V3igxvYVUraE9lBrX44iyqWSO7brOfQPXUWQPUrvsoSH2CdEaI5u8jKG62KVnZOkeSCrYBQnTbEtKMsTr1uUk697HItcxf9S6mtlSH1MMohu/Aa/kq9kIR7nud2bDt82Fjlf5NVFSSjWp5K5XKnUXcyFyBX75qwqIrHqt+ayvQnT6UgklW/Rb++/YJ5sWNrUrEgVKcTMdDs9CKEn0B/UjaAG/7H8/rlWfJOw3gSylLkb1zkVzvcFp6Uqon58l8nyAERUavZvft5J3VG9k7L70sm7FWGVkYjX5jmGz6/DHQb9kEHR/IGhvktLjoQPVKMgjWgwVfzv1sgEe/Q/Oh71rkHNryPyJHcb49PsIfk8qq4WphsVrka5GlT2LcSM7Kqp4oqqqOVqeCIvW3Ur8p6lMlNv37X50KggDR1rf2+yTrX6I/cNZpxbYNjUI6nQIRx+wNF2Yj8b/ADr17/POtwG45Y0Gghx5Mzb+yEyOaORtZCsY5GoiI1qS5TWIjVX/AFMYnZyqrGp3/Eyb04jLDJzt60oWayQrH36XuB2172fQ0D7I0YV6VdSxGLqjR/Lx19fjWv6T7B/JC7bYBOiNWl8S1muspEX5yxBKGOrllaO8srITHe6NrBEC8UVivYr1J3SYJV8Vd7nkndcaKzZmkG7crD3ppJJGXf6/qk9k+zoa1o7PvmNYgrxxnVaGPeiUiijQb1+FYJ6LHX3a3s/53yZ3x89W1JT3XIeZr18AvZHy9ZVBsX+Lla5ElSn6SeNGMc5CjEWGQieXm5R/jr4tXEh6/NbAPYKgjEYZiNsu9l3C7H3EMnoa2COY1WGSVisdSRwSe/zd/jVdDZ11RNp6A2HAPrXvXLmPpn8b2GO4BXU3DYhLLkbQ2GjDPb7B7SbSCf8ADpy2k8UcKyCFGI0oQWueOOOQid0K4rW9N/SPGTU/GP5lkQmxlbT2xJGi92r/AGrF8kqqqv20zqB2CbARvzuhPqhkYrvkf8aBpvhxtaOqySFgi2Dp5fjiJJj67CMdqXK/cvULqxXq1uVxx0446ccdOOOnHHTjkUPVpim6PCR7GEJrbWrmo1p/julK+DIGRJEd8ZHt98SL/ORid3Nc1VYn5ci0z9a/Ga2b8XFo1xJax86tHIpcTLBMGjmRNEgqO5k6dT9wHUrsnlk/THNyYrOtAZula3A/eNtfE00JWSJj2ICelZSR+js+hyk7kLJ3UVz/AJvHlLdMK7sOTWnWpMV71Go2OHZxIjGnOiPcgmyisa8Ktd3eq+fDd3EWaMUsyvajgiaOJplhYo/ynqCXBXq3ZtBCApKlV7aPOqaWWrTSJEbCmV1aQRs8e4wGVPaAuSFHUlgSQrgvoHZh3v6wkQchFwO7p2s9xnelumGarPFXIJH19q1Xub3VHNVFa0bHKrmeCNbixQ2fkA/kw+yoPzxaA3olfuiLeifbdte/RI5PJYgYeurMgP3IwLFgNt7XQBGiAB+f3vYIr55OlRgtmIQPLUIjUVyjWRdqzv5J/S5bR6d2o5ivcvZf1Vqdl7Ls9GtMnVm/01hs6ZlTfob9MU2oP5AP6J/3855oiddrK7UaCuQPegANNon/AJSffs6975BDbWoHGKN83kv8vI3xOS7RyeHn/WjpbU82kavkndO6dmr5qrlXcKUDgL9mP0F2CoX7veiNldn3r8H1/tyCsSICR2uEqSNbdfx+/ev7+iv5/wC2vYcHRxy7lpEFt5HYiqjTlsFR6eTVc1zSz17d0/KI1n90Qnii+MrPGQg7Gr+B9yxoeo3+fxv166n9+/X55Ds4LHQsOSSNMzD/AMEjegPYP6/W/wAWr8eUb5scSNy5yJ4J2W1msE1z1RPBURSGMjmqivaqMKikRUaRERFSLkrM4YHs3b/+P7N+xoqTrXobP4PXtrRIPPj5VRgdKvU702m16IHr2N7I9j/+uScqM1YzJtTm4eciGJZW1NTugRYs1w1HaWsaCVz7RBQH+0gJB/NQtYdxmPepRt9tevGDBNbuU63werFiGEBpmRtPKo1o6dkckr6O+3UegN8+ZsrHBXtTtYKfDDPL8iImj8aFtEFiAdhQC6lCCR12dc20sfnKrI5ehzFHCDXVFDUwKquhR/8AxR4sKIGOIbfyqqqIzu57lVxHK4j1c5yuXvbH04cfSq0a8aQw1IIoI4kXqsaxoB1A2f3sn+5JJ975xrbtTXbVm5YkaaezNJNLI7dmdncnZP79ED/AAH4AHPSdZnMfjpxx0446ccdOOOnHML8/LOHxndSK58kUoJq/saGAMmSERpwASDADIaQClGAhFY8wTjG7s9wSI1UTWfL4TN4/kFGvti7+wCPtZTrRIHv/ANI5MYBwmVq7/wCZmT+or/UPz6I3+APXvRIH50YEQ6e/QejFrbap08CdZQpWaHHpWVlhX1i1sGNKrrWMNxo8mU6yjybNJozKiLYmiMYMUQDE5TnauY5qrLHIjsUmhYCRZA7EM3QkEBPtCncgXozBiFbVyacNDPGZIZETsGD6VXX7kCsv3EFgCVJB/G1BHuNWhxfHehW2BB+HMLWTywbGHFmyhuhTmq5xY0qOKQwgCOY9sgKuEJpO3mJF8VVNByXiyY0tKkbLHL1lrq3cKUYlSF1IUAVGGinVC6nSKQVXdMf5JdsIn/F06Do5IjYghd9wzRBm9jTH2epKktvlKfrGqZVbyXScX8cYSyub7U0/ywziDsHUmeiilED9+tbUykFGjxDP9xexFkSHPDGGwvup1u/htDFJirl/KJWlVZTColAJWOOJG3tn2XmLAx69sP6ftI5j5jK5OxZrpDZkiMYVtJ1UySu7aUIqdSiaKs2tA+3Hb2MGW/pngCz9SPS2p592KG5lrJiPEg5ZyowjZLFlxnkRoE/lqNnt+aorFKZrlR8DcvUpbsr4yoK1Z/QTuw0BrtIqszaMhUkgsevsqQ3Ngx9m8K/x3ZvmlA2rvvv7YAxt0CppBoDSje9sPxz2nGHE2RybmyJEszpsknx4TXnjrIkSFYpO6NRFI9zRM8iFF4t7o4plTwVElMbFPfnKqoMUYDP+FRV2GIJPsE+9D9jbD1vkflbrwQkL/U5OioZuo7a3/V1AJ9H7d+/W98sY4L4mi1UA5r48q9HNnOmwm2Tka6EJ6Nc2C14UC+VC8UQiBkqYzV7tahGPUbs+61eaQfBD8fQqr9G0hKDYYfcgYn+pgDttEEejqCNuzGr9n96+39P9x/zvr6J6n9et/byf/H1LDn7jjOoYGK5ptpmkG1wmucNgJ7DvUSoNVXxYLxarOyta1VKrUREXLwdeO15BgoQULvlqaRvo9ox8oeRVB99WRW2AfSbB/IBispO0eJykgLjVCx36n0xMZUFtEbI32OwNn2B61y8dE7J2/T8r+P8AHde3/rrsn8855/H45z0446ccdOOOnHHTjjpxzHnLAXm442TRKjStoZxRPXw7jeISvQrPNUb7jERVZ5Oanl27r+idROdi+fD5KIey9OcD/r0JB3+ta/fr+++Z2Mk+LI0n9nrZi9DeztwNaHv9++VfQuTaW0u5mPSPcwrqlz1LczG2Nb8WJKrbE9jXMbBlve4U4kSRVGZKdFe4LEkxUYcrySRg40tJNCrWN9ikvxyeySTtwUct2I+1iul6gqzgLtmPL+VY1ZULqvyK3XqT07Axntru/vq29EjQ2W0Op5jjSJiMqPXbckarzny4i2+uv5DxwQEDVRiPWZdHeVrHpFheTWGVo1GILRv9z20d1hfPazMsNNY5XCt0jiL9gpk33SNFOgZD0Y9Ap+NNnRgDNlpAlU/MGXZ11/elQD2Ng9dE/wBTH8t+hrlCXN/rdudLf7+Lwjx/qZ8PJtjCbr7TjjUXxr5LiniWFPIpIUeHXw4tZKGWmsfc1lvRre1ekrbehfPQD4ZZOfF4XFNQr5PMY9myvzFa75ynj4IzBMsEkLd3kmsyf8G0qyVIJfikrPFbMBIY5EUlqZJ546kzNWZVEkdR5pQPjYsVZWROoJi7F2UkS94w/wAbryCO0515tmSWXsfmrjmNmJGlr85EmyGYW2twTbTMQblkm1w1GX70IFYRbePMBVyTSgvHFCeIOY2xEHwrXMXE/wDCPieStZVcRPkJoalDKVMbZStk7FL4aGcyUcNNZrSfxZaxnjWJgLMvzCOWv19ybLhbByMEdc2ooEMstSxZjeSES6lqQuZWEREvyLGxYu4T8wOwzF6a/U8s+RRv55yOcLTyJ5SZTlvOQrMOP7LMLVx76dX2445quiLLcyvffUky4qqgkqAPUyYTbABGyyjDNbko4m7PRybRxQXMJasVpLUFx64sS41pK8rg3IVZhDHMleazGsxrRyiKQr5M9uxX/kTRxTRgl4541kVZ4ElKCWMS6JViod1UsqHpshyoN9eMuKgs2FUxT+cqRBfPF4Pa4TYUUwRte5Wqxnk5xWtazxarGqTsRyO8CYgpzLCZ2BVFkEPftoD2P6dnQYgkEEA/lfw3MF5VkbWg2vu6nt2+79n1o9df1D02hv8AHJV+ngn3T1D8c0rPbRkSXOvCsRFcVjK6qsjC79mtYNjztEo0cnkqNL2Ts1vjs30/pmz5ZhXEZCRWZZySHIDQQSyEDYGipKkb9KNa3rkN5ZMsHj2RBP3PEkI0R+JJEUjX93XYZQN60f8AmG7rk/CIn9uusR+B+uULx0446ccdOOOnHHTjjpxzpNIBkqguY5BjKwtXPa4ZfH2nf9sRUQnmit8PwvdXIrU/VU/HWPZQyQyIANNFKp3r/mjYD8+vyR/96Hvn3GSssTD/AJXVv9wykf5P4Pr8H98pskwbSROprEUjxrYdJPhGhEZ2kEmEmgPGmIURX9gtjCKJjHPRHJIE/wAUYjmdcdXpYaxylGXSyLeOyCEPVHlPXttW6n0DtuoJ2CVILX4UeVaVhB/VCCGGyezIo6g+1JYg/gDXsNorrlaXrD3O5dWXmbS0JT0U3YZuspRvzlHcBtrSlqZullU1xB0c2BTXOav5bqauuIk5TNWMkn2IloZvwnxd9IKNCWeGtDJ80UcU8q3blCVKkodLNmpYoQy2I7cKt2rhVQyStKvyRlVkGyYuETiLtKTNGJnIZIpUVg6JCsokBQRudg9ywXYJQhd8ot3/ACxyV6VNhv8A0wAxGgtcpyHpZUvYVUiyxFrf6eJqySZ9JU5CZW0c+hp5BIlhRZiTHKXRhjBqaplCbNiDGczGqeDeM/VPGYH6mHL4+DJ+N1QcVYNfLV6ONs42Rlu2snBPbrZCym4LVyCVoqzyPPLNcN1Wbr+zZi7gZJcL/DmevcciYiSF7E4tD/hpESjRhm7wxBSZCgiQwCOToXpSxPLPIWI9RdHyLVV9pbbuNcfbJefisr6++svkVyUVzFKja+S2LYwgFY+LLJTe6kitZKayasG0U/RnlPh/jnkn09u+O22rwYaajFJHbeWz8EU0csVqKVpK1mO08DzELLEs5kaCYxoY1ZCK2xWTv0PJIb6JLZs/NJE8SqpeRejxGDUkLIsoVNK5RlVolMgbensP9OnJ7efcVyLHsePtjqlxgqiznaMOvjhpKLP39td2Wpow0ESDIFopGz0B4opxFp5Umoi/FuImcsiU8d4KF808TXwXP4GxTz+IxEeaSxTXFriUa3lsrjsdXq4u7LmHRJqP+k4+KRFElmtHZJkia6DPJ0sjEZRsvSsGSC1OYX+T5nsOVSOeZ5pYujfKZWnkY9mBl6dVb4XVI1XZz9BeiNr/AE2cXX8+S2fZgz03O/eE+X5WEXM3VjSwJgXWcaPZFCSFEiIhJ0cE6S0HyLEIZ5DIPOvSO9h2YyRmX4p/jYwdo2mhSV+4qvNUeQyMUkMEskRIbpK66Y4j10jmkQdSBLoBV0umGwgJCsAB7H2r+T9q71yyv0SRG3nqcmWbHe4KgxF2xXeLnIw3uwYStRy9u/Y1lK7p+XoqIivVEb5WD9Mow2eiBX3Dj7dliAfRmZIwAT+G9n1o6XaDexvTfPJOmF6ga+a5Co/uFRWb9neiFA3/AHI2OXW9dE8pnjpxx0446ccdOOOnHHTjn4KxCDIxURUexzFRfwi+TVb2VezuyKi9lXsvZO/4X9OvxhsEf7f9/Xv/AB745SxrNXGyuz/hKfVXAvu2s09RAuGjr0pEkRfuVqgSvfPbLZJOGN8OMBIinIViORixBvOLjby6hMc9m0QMRBaleSNFZjpnUvJ1AI+0fH92x6Hr1650JhZ4f9Kx8nePq9aBtkhX/Ggg+8eh72PZJJbRJ5Fr1fV84HGIN5UZkG0PxfpqbkCzyBlmKHU5mpkjdrKxI0CVFJZyRUvuz6+tkHSslT4ARWTDwfdAavr+PmzlG/glyc+KmyNOetRycaCSfH3XidYJovlDiMtIyxSyIolRJO0ZDqhXase615jJ0V4yNSIQSGi2rEsPXcEBtBwF317EDZGtz9S7cVkPj7YoTg/j3NM5IfxRuuLYdNLrt9Ycf5XWUKR7F9NpcbNi5jOO1k2vr4ZM5LqJs+yso9vIoL20oIteYXt/8f6N2XK4VD5lmsoPGo/JsH5RJdr2cLWzeQp3HaKK1QysZsXWpC1ZMF+CdK8cJjSapHZknDfPmTLHjrKPThQzmA0x1E7V0clGZZIn+KOWRo0UxEEuVaUF4zAU1+OS8L6nF4xrtPoKaZGx9neW+Sj0zFzcfVDsMMGO+zg3VXFgi20UFVFcN9mW38YcOIWMQ4mxR10x/WOJ8j8Cl8lt4mjertmalKplZZjJe/0l62Unlgqy1bsznCym3YMscIqyl5HaSKHs/dBVGSxfki4yK09V2pvNJB8XSL+Sv8aNHYSQpH/KESIEI7gqvVSVAUHk/PT5sstnOMsjPhYuZX8ozKrJXnGVhiNKCjvc1f5Sw+23syoy15XBzmt5O0JG09ibLy9Ba2ZmWUT4ldJrZZgQqo80wmUzGet1P9Vjt+NizlaOfxeVx4vLmamUjWbG1Z8hWkN7FYGu38iulqCrHTQxPA06soZ9/wABNHHQqlo/496aGOSCaFzAYnhJFmT4pQIZrWgsksZeTozH5FCkoNsf00Dfw1wzg+O9VNm2esymPkydkSU18m6vNLKe+801tFWMwLLN0jRXMxJk8AfinkFRP5ar4thrNeCRpjj4Yq1KtAkdOtEjJFDTqoI4IYY3d5PjgiVIYx2coo6MzFRvIZZZZFkYlmsWUT5WbUavID1Ex/EZcqxVHIdkUlR0BbloP0u58baaLkXexaydUxDZ6HEjxLMHx56EstDONJPIGj3tYsltaAg0V/dUVyuRPz23z6MWBfv5q/0kWOOpXroJIyjDdn39hJIBMXZfe9EbAPrmnfVim+Lix+OeWGWT+RJMzwSLJGQIAOgZQP6GfT/nTL69H3cx10RylOOnHHTjjpxx0446ccdOOcO/pd2/Xsv+f2/z+P8Anr8P4P69cc12/qEbOgyQPULU67M21zS1GnztmdKm1kUE1rLadnVCSpuK+TGm1NtBFaQLmHIZJT33veR7TvbJYvL/AJ+1fGeS5nJM8pRTFHZhhVVnPzxFhLGXJVow6s2jpQxCkMPzf3gNS1la+DoQPAkthLJgkmUvEGriVmSaMI3ZXCFG0rN1Ol6swdMccN88D5LrvszKicOpg1UUEewvpflcSYoxIETrgEhFZJlEa1ozSxvcKW/yI5XITqr78Fa/Ddv1BYqmBgVWwkaNISOySCJSXhDdj1k0q7JdT1HN5uYyXDvBFPPBO8jkMKgd0Q9urLHJ1UHr+f0VGhoHYFTvrC9OUzjmx5H2/EAeIy5vb4C+xmpyXKVLEsoOfHb2a2snT4u5tLGtjxrWF5ymQqqwtauOBjY0CHdV0ETQi+qmPoeQxYpslbzmKs4XMw5mGbDZKWjFkbFOMLHVyYCkNTsx/EsqJFJp2lnSB5SVbzeewHmjrQxW5bVd6bfPAszxwyudiAKB2ljYEh39yBhGzCNevKKOFLv1U4znKzu+NeH6jXwLEsuiAe00Fdus4PC2za479M/W3+2aOx0BryNfWNnVmtI9m8lzHpbjTS6qhgBbYnmXhfhvmvitXEZjyOxWWCarl3mwrJi5XvwSyyJjf4mPo/DHTjhenDDNHAyRyVWtQ1YbM8r8gsfY8hweSmsrijqWWWoI7aySiKmYYQ1kPPMZGsNKJZJIG6GSOZY3meKNY1uI9KPpU1lLS4XV+oPU549jx1aXey48xtP3vcHgNdrbOztbrXNs9G37td63xtpMCrIY0atoYqI+CKfOI2xdGD/QMdlcjYwdKSS1lKWMxuSyMxaKe7QxNWvVoQtHGywpDGsAld1HaWWZi7DfrOL25asNeQKOs0xEcbM7JPYklknWFyWkAeRyCVLMx/WiVawXjXexbLm1kPjSrncgzijj13InINyRR5zIZiK98klLn0juBENayT9nqjeyEOIbHNlsY8otZntQyZKQU0a45+OO3YM7NSoV0lMjVoTEFRpiSzFANvOyCSVugCbRJjJ4PHYzlZosZDCzyYvGQQlrmRvSRiAW7SyAyLCqhQ0rFFSNftVTsPev9NgJJcfnS4I1Ghbrs9Rw2tc1zUjxKR9k9yeKIrUK+1aVqd1arHMcxfFU66A+kFZVo5ez9pklsV43YHZJEby+/wC2vkAAGgNet/qgPqVIf5WLhII61pZT2Gj2aQJ+y35+PZ9n2fyfybQerk5WXHTjjpxx0446ccdOOOnHHT/xx/tv/H9/8f7818fqd1i13LO7p7rJLpMZynx1xjY3AvuBKsw6im1xMPubatkew9H2VBHvsbaBJHeWUN4BKaEWI0phc6/UbGRWvJLlacMkWSxVeSAkEbs1gEUIxABYSqiMPuC/KXdfjBDXd4JesVsJjr9KQJbw2UvIQVDDrZUTokq7+2OaJrARiApaPoNlhqKnKHGHE3p4zi6wPJukw6wosWkqZAHhnllmevhEG6tf7T5rnvb86UqqRGv+SRWoMjmJzw+FlgtHIV/IcniY4utRpZpIrNAs8pCRyxzwsGLurOAju6r3MKFSyi7KPkFvPL/px8eoZh5S9ySusUtez0SNfmZZY2AQqrBN7VWd4+5DhTyvL1SenFd3TRNNzD6m5cjDSGRpUP2oVXRscByhJGYIaHWunyHCG2NHkGgy3wnqxHqdiP8AKQMHkouQ1mt1Zq0DEWEFVKkRj/KOrxP0YNGm1YBW1va75K4rPYSrHMMX43LDkWBWOT+RNblVux2oDxGWMdv64h8aufYZW98rGpeIeP8AKbCc/jOs5P5OiXI4METFhLn65rWTYxXTpmmaCvbMqyuEsZXQIH+lhJBCzHIFO2zGKIQoJBNIeisYq0rwrIQ3ckTu0fSNmG3ZS3cDr7J1z1nyV+31N2TF45YndzJMqzS/crppay/LuUAt1DlArgaK6LCyPC8N7zXEiE5Z1SUeWqIhTxMRlZhvcdVwf9bxMcr0Y1jPNovfOsuyOq/HCoe3m7DkpX8pMTesJBSZ1QVqby9ZmZlRflmVF9+yrKpcaDKhSPfIn/XcLg4umEom5knTRyGQhSX4z1B7xxPtgNaY7RVIH3F9kiVfDfIMyBoaPB57CxsRQzzhkVGSNGWNc1WNoos4mi2uiM9oTrN0DPYhVEWcjiJIQsshpDUb5Yoywq3Ew8OLWBXkkipw9is38WuHWxfnjjDrFGzhYqyuzSTsTIwVNFsfIYMXMfPnbmclvSxRq1656ev/ADp3iFXGVT2UgVkfvYnjUr0VY0jQgc2AvpU0mlD6a7ba6+onUl1ybyvv9ZGhWADxZA8yCeDPZVjQSGsMMDKamAgUc1rXNXzG323Nc7pr6PU7VfxaSzbhkgkvZK1MiSqVcwx9YIyAVX7CY2KHXtf7854+rNio/k0NKjPDYgxmKo1WlgcSI1h0axYJcEhm7y6J/PoA/jQsv6tflYcdOOOnHHTjjpxx0446ccdOOVn/AFIKINblMLyzKr9da03H9nYs08DHokic6gsonaTLPWovv28GE0RSzqmO0x5kbzNFA6whwyipb6y1ZkxlDLV47DNSklhdoSxWJZ0JSSRR7XRRxGw9FiQynSatD6YSrYyNvDO9WM5IQPEbZCK80UnRYkkY9Ed/lGnk6IuvulRWZhqTeorbQeQdjbak3IWw9RVMID5+Uzudzlhky0NS44Amrb2ZIhQK+JKjCciOlUVfOspUVqyCCGVxBLy5PLQyFNv5ds5OGNzNXxtGC1VdAzoGM7ugC+//ANBNMR7+zsy87A8fqX8OIYKmLq+PWZ1+K7lchZrW0mfUhSSnHHNLO6kDsqTSRxAsAzsQrH03L3PPGOn4a4qPccJMn31ac1XkuO7eZ71lRXEKI6vJLmy5hWxgUZ47vkCtbEYWyQveNsdDtUfU3H8tmSvZkjVWnCiGnJGy2IREpRF6O7aWNV2spCluwAA/A1mLFZCnkMtFDlAlcDtfy0H/AOLYSVu+kMaBnk23VoY3foV+5iN7gPxhK5ax95teYtoKdBpyx59suHDdDLBny3+Xwowa4MsyRhwlawEAYmxxjG9vk10VWCSZWNjPPNYVEWVOwhDsWRURddVI+zp00o/ZJ3v9/mTkxc9alicY62rCypGbvxKrHsW+XvJ1BlMjEsSVOgiferduWk+lqZc22dNvb60rXaPax0siskm94NPWMcRK2iq4o1VgUht/mmC3yeSQRzSIpWqFvzXmkdAGYRh5FdIlBEccf4iCjadSqdXd+2jKX/IAB1fPx1oLAo14pGSmohaVl6vYmI7zTTONuT3YpH1HRIQddVYMPQVeA5H3W61ulqr1F0E6Itdbz6sDmProtZLCLP5iO2WrizZll7ASzhsIo5HdgpCNita12tTR5KbyKSzUmWORlWP5YULlREwFWqSVHeSSTTTFSI27nZKa5tkeRweP8bq1LlR5aqs0kcMrhGlmsozWb2lbSJX7aiI7OrgNGDIQw3E+A8hLwXDXGeSsPn/cabF0ALX7oQZbFLg8Ecu2ZNeIYh++OwkSBvaMbBj8UENqMY1XdzeP1pKeGxlebv8ANHRg+cSL1kEzr3k7Ab6nszArs9SCPyDziXNWY7uYyduEIIJrthq6xb+MQfIwiC70SAmgCRsj2fZO8v8AUzyM46ccdOOOnHHTjjpxx0446ccxXzLxbVcx4K5wdyc0eBbiY0rwlkhVyjd5NG98Q0eSNjl7Kh4xxSoxGjkRyNKNq9a55VgB5Jh7GMNlqpcxyRyqoZfkiYOqTKdF4HI6uisjDfdW7KByXwWWfCZKHIxxJK0QYdX1+GVlJUMrL2G/6WBRxtHHXlTnO/oc5C/hKbS4C7Pl07PAljXZYeoK+CUKimCgzq+bVXMWxlsXzHLnvnIKS1SGAZzu7eb73028lwU0luvNPajT5uorV2uKSVLhoyrxvE2iCBKrqGHbZcaF04r6gYO7LELtfuSyaWxdasiuGDH5lZZUkU6CuiNGGAA2i+ua8vKH03NDgbG31tvmYvKNjW2MWTUwthqdVmrK7lFmMPNlaCFIh/GWLBIR8hsCLLUU1oCheIjTuE+tYqBhuM06XKVwuxEmVS3EWkDq7d/l0oJHYx9t9ZAo6OSBy72+oEV2nDTieGtWaN45UxsVOVYIRGyRLCyN37uR1kcIhRHMg10IGO7LjfS3tqTGW/GlDGrbaqkpIsI88w6USMRRFgMkx4yHiuj9xyQPQTPa8WPb7j+6NlBOIZyJLD2flQmSQxN16t9hUESFtkgFAPwdHe/Q11JU+JLkVhIXgmHSElTOHUhhIVYhWB2CSH9n0f3zPPpW4s5jozG44oskC0rakkworrNxrndSG2kx4yRYyDgwoyMGwZFI8DAsEFjGucqOcTxyMfQz80616+KebHhZjDZrtPankd23ECjQrsqWJkHRIwoVQ4H3c/fIsr41LF/qU+UMeRkeuktKf+PVhWCPcUrRy7fbHoOjkl22SUK7VrgOAvps806TYZXS8hae1x2JgW4NFeVZYsSksb+cFjCMHDo6h4iDcs1zpIrG+/ngRrFcxTDRhbD8b+k/kVnJUsnm8nNWr1pVnaFYIqvynqoEaVo3+RVVQQjzSswY9n+UqQ1deRfVPx+DHW8bgsPCbk8X8aG6881p68QZ27/LOHQP+isMaqqFlYHspTYbROyf2791X/dfyv7J3/37ddOj8D/73/8Afv8A6/3PvnO3/n/P+P8Az/f+5/POev3jjpxx0446ccdOOOnHHTjjpxx0447J+v7/AN/36cc+Y8OJKa5siNHOj07OQwBGRyf2chGORyf4VFTrykgikGnjjYbJIeNHB3/cMD+/fPoMy+1ZlI/BViCPz7B/R9n9c6Ncbk1Ipf4Yzvuqvk4i0dYr1d+qr5fG791X9V7qv6/nuvfrwGPpKewqVFOtErWhBPvf/wCp17/6/v8A2+/nn/AnmA/Q+WQ6979bb+/vnegiRYrUbGjR47URG9gBGFOyfhERBtaiInb8In4RPx1lIioNKAB+gFVQB/YBQBrnmWZvbMWJ9ksSST/c/wCefR2//f8A3+/X1z846ccdOOflyqid0Tv+U/47/le379k/b9+vwnX/AL+P88f+/wDX/AP4B/yfX9+Q1lepzcZmy1UXXcHbeTHr7i5jUBcNT6XSoaspZtlVkPbnJQRhrKny4DJlV9lFYRZ1NI+eMiEYOOfWmz1mvJMtrFW2USypEakU856QyPExlJiUAyMgaH4wyPF2k7D/AIYlv6H6PeOZiliJsF9R/HK9ifH42bKR+TZHD4oC5kqlO9HDjo48pMRHXgtNBcXJS1ZoMjGtOToXeWDJfE/P9PydCru+d09LazLm7oDRzUVzJrI87PhiunlPcpXhhwY5DmNGjCsnRpqSIxo0qOCSNwkzsdmIb6oRFNG7ySxAfDKyBoAvyM0vxqiDuxQK5Vw6srKGBA1Dzj6YZDw6xaIyuFyNGDH4zJpImToQ3nr5d5v4kKY9rTz2rEUMcU1qSiJ6nxzxzVpp4CJT/9k=</t>
   </si>
   <si>
-    <t>Choco ngũ cốc kem café</t>
-  </si>
-  <si>
     <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAICAgMBAQAAAAAAAAAAAAgJBwoBBgIDBQsE/8QAMRAAAQQCAQMDBAEDAwUAAAAAAwECBAUGBwAREhMIFCEJFSJBMRYjkSRRYQpCcYHw/8QAHQEBAAIDAQEBAQAAAAAAAAAAAAYHBAUIAQMCCf/EADkRAAICAQQBAwIEAwcCBwAAAAECAwQRAAUSIQYTIjEHQRQyUWEIFSMWM0JxgZHwJFIlcqGxssHR/9oADAMBAAIRAxEAPwDf440040040040040040040040040040040040040040040040040040040040040040040040040040040040040040040040040054SAMn4Hf+3f/tprHmR7Pw/GLWFSW1i6PPsHIMCNErxtK74GIpEd/beV6tENFTtUz2Dc5rnfEH3v6ieJ7DvNTx7c90Stul9HavDxLgcF5ASMjf02fpUVivJ2VCyE5G7o+O7vuVKbcKdR5asGObghGIzglFccnCgMWwpIVScEYzTbsb61WFU+UZDiOE4GafaYvazoFmKxlT7GexKua2FYjm11NCELH5IylH4mWs2QrR+UphNbHInORtx/i38zu7gtfxX6VSrtse4rVs3993SU2/w4naOSZaFavXSvIqRSOUlsziFmCSsrqEPXvjX8HV/dKEd295ULks+2Leiq7DUilQNPDzrRrYllla0GZhGzx1YizlPSVwTIP5/UF9WbYWPYK7P9B6yxPJaXDgBs9owspsri5y+up3zJlf8AcscxrESMDJqjSovdFt5FpIZJjPK5kcB4yCkTLcP4kbu4XFqeP0Km1CpHCu6/2ho3JLK3XeNXrQCK1VqVoFLKWezLJZMLrMRFGFZob4h/Dtt1vyzb/HfMfMItmr3dzFSa9XVEO31ypLmzHbjLJdBHpfhZY4o437Ly4caiVp76vfrOyCHke2MywTVlbiOR5BkOBYRq7OXXmtDY5cwK2NNp8xkXhKexyS1pHzyEqLqlek64mDd72jaR0GSrtFd/i323xzyq5se+hdyU+OtvKLsddbMNCb1CteAtBM88wsJHMw9SdQSAjSQsEM13fUX+FX6eU4auw+CXd3tbptH4KTc/KZtzr7jBvcVl2E8b04mg2/bnjh4z1nphlQnE6uHAMrPSh9Xuzzra+49Y7+xKFAscFroVrBl6ur5VnTQSx4QXS6Y5LazdKOS/DIi3uPe7sFtfEeRBmwozIamWwfFf4hqu5bZLve+bVcj227GlvaDtdVlmFcLKJYrEF6xFK8iyRFS8ReMSFh/TiUOYV9av4WfGvEPFvp9v3098ufd7G+x2a2/UfIpYalxbaMuLlSCpX4VKlaYzU7EM3qkiOGWOxI8pDWR6r9dPp72zfQsZqcnLjt7aoqUtbmTa6hkW52RizCQoSraSwusGxI8qWyEUopB4kSXIjsKOOVWzvwb62eH+ebhNte2pu+33Iow6R7zTiqw2RkBhBaisWK7SoDyEMkscsyZeBJQCRzH5R9L/AC3xOlX3HcakU9C1Z/CQ26DTTxGfiW4EyV4WJ4qThFfGVBwzKpkPge0dc7SiW8/W+c4nnUKguZeO3cvE7+svo9TewFRJlRYErZMhsSwj9WqSMbsejXNc1HNVF5bFW7Uuo0lOzXtIjtG7V5o5lSRfzIzRswDD9M9/bI1E948f33x6aCvv+zbpss9qtHcrQ7pRs0ZLFSb+6swpZjjaWB8HjKgKEg4Ou+cydajTjTTjTTjTTjTTjTXCqiIqqqIiIqqq/wAIifKqv/CJxpqDfq63fsXCqCJX6TqJN5lxG3RCzGjb9hpz19as2E7I5ivasWsO4RxqvajJMlARmHa9zkTlf+Iv6h/UDx6pslP6YGCTcTfnl3+wwhkO30K8MciExSEPN6jeqohh98kgiBDxiRTd/wBIfB/G9/vz2fNp2q7SqVxVgX1Fs32ksCOVa3AewqpQGZ/ZGjs2C3BWpBt9d7O9Xs7Y2ytr7vswSMQrocai1fSV2f6713aWIqx0+6Zc7AHNY6769/hBXxqyDRRlL7ifIKGb5IPHXhO4v5Ta3Lz3zLft5l8ijvSTh/I9smpVHqwBfTHjsFO01ahFXkclZbsU81yXgJI2jLPHf48U2bw3ybx+hc2w7r4pNPDLYq7XuVWe7DXkmaNYr9VAplLRsvOKCWvK0RmV2eULHrXw23lu/wDb9xsmnxzVuY1ercfxyfI2lfV2MSLLI4FljrJXiLAvYMhJGSZTcwngqYdaGdaslQpEmTNkSGRQI6/NtfbXZbW8bpRUWrSTUorVyCvFYWZoGEslgoxjSaQEy2Cp9yRxkKyMNdu+S/U/wTwXZ9tf6V2asHkD1Y66y0KEkQq1yZk/A3qBij4w7WLEsldOYkjsSpLEzhZCJY6E9QvqOvMYotAZ16VZmlfTDkeIQwk2JiuNZjiDg4hgMiGmN1ue5hCeaXMJb4/HkeC6o5QzQwWLYg5UC1PPZDr/AHmn9Mm3OW3sP1H23ctxh3qa7ufiVzd9qno7ruN/1Yrc5oxCKezPTmYwNFclsxmNoCiIiRMOO902O7an3C7uGyvcvbu1qGzeWCWW3DJOwtOGkJlhC3QzWAY5AwkWcufVBxM3eWYYXpLAKK5iRYdOPLNCSclssVtrXvh4YaHkNzSNSug206xPItZKCh2bJp0mXk+xMhZEoonAGOn9z+lFPffLtru7Y0NDY12uK9uc1FYoOW7sbVeHaqccZLMFgCOyyq0ClpG4mUw8Ohf4fPFo/OKl/YZ/xW2VNg8lMMUlSOR7FrbJ4obLWJLBVgiPY9VnklcRRpzRVV2kZqy/RbrXNs1qd7ba1rm20skzybmWRSzZvb5dX4fqyDBsYT51RrZmFNyhwMrvqmKWQB2SxqUEqvmFgs7oBoEOOS9POfMds8Vr+MbBumw7FS8dh27bqtQLYis+QNcr+iljdVUVYJo68zR5Cz3uEx/ExiJpGQ6qrfNin8Q+sNz8VNd+oOybduEdiSpKf5dA+2l5gmwWa4Nuus22nDzPEGjmDVyyKHkOvgW1BtW0qLbYmXbdw3CKxDW+HWhazGs6zTGrqvgy4U4MY8946iLkBMiYFIs0bi1oKGPKY89hOMyQBnm2fUnxijuVejDtG67nZs15Wq03rxbbK87xWApjMMsroEdkPBYXaySsgUqzkXd9RfPP7V+KNs3j2yDx25tdnbNy2i++57ZerbEK9ivLLYipGGCOGwFimjSVHLK8kheNCkSi5H0Lblg+ivYu4pOoplBndfutdeXNjq6PBuBUuFlogTxSY2E2dbYTHFrjSMglqewuQDBSQ48eukxAx68JZXy+nn158qobZNR8R2D+0G407EcW8rvsLVJtyhqSvG9iom22Ikp8UlSs9iWGUCSON5a4i5leefrT45d+pNTxh/PtwG2DZotyi2reqbiazMLpruINzS1GBOGNIzwpVmWSy0kuJDMGU7SOk934bvDC6XLMXlhFIsa6NMscfLPhy7SikFRzTwpjob3gOgTCKwUuMro8kbUIzsXuGzv/AMX8jr+SbTR3GGP8PNZqwT2aDTRyz0JZE/qQTMmFf05AUWRFAkADcRk6/n1v+xW/H9ytbfYzNHBZmhhuoki17aRsQs0RdQwDrg+m+HQ5VvjJzLySa0unGmnGmnGmnGmvTJAyUA0civQZxvE9RvcMiNe1WqrCMVHjenXqx7VRzXIjkX454w5AjJGesgkEZGMgjsEZ6Iwc/fXoOCDgHBBwRkdHPYPRB+CDkEaqm2/OvcB2fb1kmdEKwxPewGX0+j7JkGShiBL57QEEDTtY/sfHFOiyHuax8gpEb2P4y+oVSntnmd9b22zmWbnYjspeqSraglUuJWrXgkYl9MgNwmjd3UGQIoy/Snh7PufjNSWC4qrDivLGK1uOWGWJinpiatzJjVwDyeKcGMjjGQQU6LJzqZIiCJba/trCOJWKw2OVgz1D4zHdfzkV+QXbzNUrlcokhJDTv7VaVyp0hU9XY7UcTT1NygMMqFmi26N42wCQ0j09xnJyVBUhTGVYKQw4hZNF/MYJGWvcpuZI27nucZQ5x0Fs1oDn9QWEihfaVOS0ec53VhNYstkrXwagbjdzxWECeFSqhUKjiouLgj/k9GIpTK17HtRqOJ2966m5t+wusoh3KKuJBxaPcat9AwBbCOs1GWEoA2AmCBjAIAI1vaL70BGJFezJGAVkq2apKMV4KyFLDFCgJAHJsgdhT0Ik5lubVttkMO4sMYhnWFL9wsV2VW0GsIZRIBEnVUIkQMqCUKISVCkR3w5JxslSI7St7+V/J9OfE3trajg8K5s4kXlRniAlCqglMaV4ULqFXsIAFBwoOMTKp5Bv1Wo1dX3qBJAwYqtV5GjOWx6ruz889K2TJGPYrcQBrDmw91+m/Ka09LleptGS6sTTeINzi6WomIcj3P8AaShVkggfMp3uKgTs7le7vYjkRUnlOjuEYCxb747XZQh516lrkOOApjZKZKkYBJHA+0jGOhiUt83nZ3d9rs+WUTP1MtTcXprKMlj68aWUjkDMAQsmVLAE4ydYWHm3pjHAqaPCarWGvKuvnNmDp9ZRc1w2NKM9yGdKtIVDGjxroimXo508Tiqqle5zxqiLnbr4pT8jnoXd93nx6/YoFPw01jarMxURsHXkksbNxVwfaxHLvIAbrCg8k3qkL/pVN/kG4M7WJLFynYmdpAYy6zSSySRlgQHKvyxg/IGJLUezI+cNDW1CQj1cBjGDjVuEUwqgAHL4lYEEtRNa4rRL0KqD8ita97+nXt3S7NtNuyJ7W+etKuBzpbSlYJnIZQ4lQqXAySeAx8sp9rR59y3KpEY49qMSSdj8RuTTySEZPIpwcN3gcWZv0UEHX0K3C9VYdcXWZmoKRmS2sb/Vvp51TjlpP6GSWjZ8eBZXRe+VIAFhQBSMM6oxriP6dybvb6viuyiaT057ksi+5EFKB5Fj/KrSxrJN7mVQY42CuzBm79x197c/Kt3jr1pJVighLLH6zW7EcRI7dFlCwoy5PvOWU9AHJBvx+n7r2wi6tg7LySiHjNplZJZqTH4lsGyiwKJ6sGOdLJHrq/3FtaKwpDGmMLKBH8YEexHPV/S306rBtlg3I0k29bZeStVim9WNIC3UrkfmlnHuYuWY45fJzrnfzyy384moG4941OCz2ZIfSZpgCTHGpJKxRAhVCcV7IxhSDYVyxNQbTjTTjTTjTTjTTjTUA/WviJB1tLnUODTyFA99XatuhPfXmaiI+C+QRqFWI7xNMNsloDfA2jeNVcxec0fxBeMiapQ8nr02mnrc6lqSNjzCsGeBmj7VgoDoD7ePEZJ5A6u76Ob2Y7V7Y57DRx2FWzWUYwrKypMFbKYJzG/uJ++Me7Vc0WzoLIijuNKU1uTsd2WeJ5BWhXonc5VGhn10lpPxRU7E7nOVqqvTovOXa3lMEClLdESFAMMuVk9vRLY5Zbrr8rkYPWQdXvb2mUMJItyMIJBJnQsuPv7SrMAc4zxIyPsBrF+zK7D5VadgKDeOPvKxydK+/wAmmQxu6u/FBRskJFJ07XdqIJ7UciNRqN/jHvb/ABXEMVWFY3kcqVnmL5c9kOkhCs36jLAMcfI199upWI5VZrNKwFODwCrIQBjiS0a9nvsE56+T8Vu7Hr8ZjtOx+Y7bhN7UVWTYNs9yr0cva/yxZncrWKr17nORG/k5GoremJXmtsQ34Wg4B+VaPiPno/1Acd4GegR+2pRHEiqSSwJABCnkTkk4UAEZHQ+MHBGdQQzwmMNI5B7Dzs/R71RCQJjERque5X9o6piqi9qD6dVc5yPVrmqjFSU0jaIX/oKIz8nmpyR8ZxNnL99D9MADPWLOkQJJmsJjHQV2HeMnJjB6+4ycfGP1+Fr6DQzrUXS82BYKrxvajQWbEVO5FQnUaAXorVYnz2N6KqK1FRE5uHksKmDDSTr/AAsmcn5BBy4wR9mwevsCda8xxEnhJZkJJySp/QHr8pI/b/8ATq3nSNPhVZXIWdr2yyiQ/wATglyE4ewbWj7e1qWUsr3fmqPVGtXr0VP5ai8VLcUJZp68dmQleJUoFUA5IwVYlTke3Bxj51otwhllIWC09cDmG9rcm+MNhfg9fOf9DnUp6dT55eUWvMc1/ilGLI7eBVOBWKGRZEGaUzyudJHChxozhx1V5iNKZ7Y6EI1FVi9d1RkseQXa201aQEdyeOKT0MoViLgsWkaMRgAZGcMSMgH4B1FtI9np2Nzs3pHkqwS2FMr8gWSMlcR8iz5IB45UdAY762SsJxauwnEsexSpjsiwKGphVoAse4iNSMBgyOV71Vz3PIj3Oe5VV6r1VfnoncG00Idr26nt1dBHDTrxV0QEtx9NAGy57fLZ7wP2AGuRL9ybcLtq9YbnNamknduITJkYsPaMhcAgYHQ12nmx1iacaacaacaacaacaajD6w5/2bQWaZA6KyaHH2QbSVFd40ceEyYIE1onl/tsM2McjxOenYrmox34uVUg31H2kb34fu9DkUeSENG4x7ZEOULffhyIDgdlcjUv8EvfgPKNsnJwhkaKT/yOpzn7YBAJz1gf6GjXALrTmxEhXVBPqWLZIQPdU2y43eRjCMoTR5saDPiljy45HiG9JDDsVz2OCpAkER388918c3ja3linryy+ljkVjMkbxuCFkik93qIykH83LJKOF4lV7C/mUc8RaGcOUyHDcJOLDBZHU8mHEEYKt+UqUPYJ7vsbEoNFVHCPNr2vekZ6RyvyyLMQSFR5GPKy2FLcdgPxc9HuQTFREe5geiJoIKl9rBiNNpQxQdpKOTCMBuRQAAYOCE9vXEKCOZ/dK2lhQ/pxcTyYj8OQM81yE/KC5JLq79kH3BmyDX9nWJ2k2vJJbsu0skeY70OIePT4Twueqte90WK5vja57Wv7ZLkkI1qoNj3uYm3YTV5isu0GJUweIFgIo4kcgzMCQ3TZOSM9dAnUhqzQSKBHOgwMdkK4IHZ4Ywr/AD+gBJx+uq5toY5dVZyGLlMmSNHuRXvrK3yo0yvaMrC/j3M7mtRVEHuVPGPp3dreSLarEEriP8JCG45XjJL30S2Qz49qkk/BB/L1jS5DMqF1mcLyAJ9oGDn5BVu89Ag47wRjvXs0/isiwuRGdkFm7o5quGENfGepe9CPC5roj3L06ovY1HCVyK1z2PZ2O3M9mNAFNeOM4IwCxPHsAgljg5AAIGT1k/Yahq8ilz6jSAELjkAoyM5BjAzgH4zjo6tSxSposapW2N9MMsaPEJKI6xtTgG+OBiq7wgdIjiMRxGqMcZAkeR7hhaqq/o75142nlUJBI7M4AAVymABnPWAATlice3vPWNaey5X3JKAASG6RyWwwOCT9wBj9OJ5fOdZk9Euf1+z/AFh6srMcxuXVVNP7+yO+aAEJFEOMvuFJEa4plmte9g2qUv8Apka8bhtMrHcuL6a7LJ/abbzMFxDMZwULOjIq9KQ3EAAlvfgye4LjiNV/5/dSv4ruKmQPLPHHCe+lLP2wbBLEjooSFzk4+MbSCfwn/Kdf886zAA6HQ7/9e9cs6557ppxppxppxppxppxprCPqSpFyPQu2qVrWufNwTIUEjmeRPKKCQw1Vn7RHD+enRyfy1UciLzWbzEZtsuxjstWlwP1IAYf/AB6P2OPnWw2mb0Nyoy5xwsxEnOMAsAfsf11pE4vTQsfy+3kRIQQTJc1hJxAvKEcxYbUihKrHE9uwzRhexxhBYpmsI6QQ5hqguU9xZ2DxyvlITIIw4yE5EkjkcMVYg9HrJPWuu6Ecaqk0SDMqJI3EYEjrHkEgfLlSuT84wCPjXZNtWxnVDRMcbtOwEd3hV8hVcdVar3OC5yRRo9CqQ0hnYPtVXNaqvE2NRxhpHUFRhWkw3ELiMOzBcHBZskAfJOBg5xqURyiFFyrn1HEQKozEmTiFI6UhQeIZiQFHI561XzmFkSqSfJJYewEMRyIsiW+CBChAIcNpSIrWqr3hV53vejWEc5WiaxrRrIKskdnjEUE54orIYWckMOTKAueS9E4+AATnonWmuxvVLOCkQLOeTShMFes8uQC5x3k47wCRg6jJkuxxWTyQq7NQWHciK0AMqHJe8g0I3p0DKciNRHMRWoIbfctYhBFerHpu4dpihKv/AC70JGUguKPDo/ILPD2uDjkMYz8571op9zMvsN9JQCCqJbR2PYAwFlJLBuh9gDkHrrumpbe6LYIVckuAvK0HRUtLEYWsORyujva0/cxQoRgm+Iver/M8yFINWsxrlSgUwYIQAfaFgTHMHoklMZ6P6huzkkY1kwWLQ4j1JWDnll5m7Ugdg8/dkZ/YD5OrJ8UmyBVY7CxmSJAK2CplkS5p5DgNYMhHoOV52nikG1PI0cgHsUGxSBIWY3sTUQwkScYYgHZ8Ksapl2wOIJUJhixIXIYk4Absazp5AsfKRuMSB2LuSyqi9sRgMG48fnJILdkLy1bd9H+nDbeqGwtGIvbT4XayHJ071Y6Y1FD0enw0CGE9gFe4hXeNXK56o/x2d9NoTLvRkccRHBI+CO84GCCMA95GckdY+TqrPqhKY9jijBH9ayq45EAgDrIyQDgZOMYyPgYGtpjl965+04004004004004004018LKIH3XHbyt6K5J9TYxFa1URz/PCONGo5y9qdyu7fn4Xr0VWp+SfGxGJIZUPQaKRc/OOS4+Pv1nrX7iYrLE4/wyIxB6zxIOM/bvHfeNaIllXXOO7mzSvNKjJSxbqxhx4iwlHJjz4t3OYVxio5WliviPWOg1chGmEN7HOR70fydvaRQy2oTCY5Y7NgFiSY/SXIUBSOXIMBnrioZiDlRnsDY5Jp6lGQyK8MlOuy/AYSYUsfniMrgAAgkAFgpyNdS9Q2fxsDxlst7qONYXJ4tDi5cnvo2MY4bKbo7oNFCu7qY32tTWlVnurG2O1wQQxeLsYhRuZoKG3NdYsBYkSLnJajp1pLVtasK+o7168RDzy8Q6LEArSS4wTkKZHY3EURKOKBvSDV5JZhHE1mR1iSF3I/pe7tpMssaKxK8iDqoO/1+zPPT/lG9s73FBk5d/WVhPx+gvMOqg5IzGq4SxhQcKxu5l2GLDqgnpc0tHGrK/JrmyjYpUWsPJ4BrGzx1syXeptu8127xah4zYO3tta/it2r3p126K83vRr80CxXmsEWaVZI/wARTrQSW2ielMVS0kBv1nvbNd3a9vSfiFstJDUeuhsJWjbHpQQys9dQphmlZhHLMyQGZJ0YvDJDzGNjam2ZmFvVVeJ4bBs6ldh3txZ7GzSfJwnKYRbRxgzMVfT45ipqwgzSJlwjzippSkOwsetcjGVcSYbvtfkex0K9ltz3exFO2xU6tXYdrhj3ehKgCSi/Jdu3fVjeFPQnAeZwUnRrDu62ZIbs+6bHvF+xWhpUFlgj3W1Yk3bcLD7fdi4vJEKQrQQupSZ/UTIhRg4ZIwPUiizdoDIza5uMZPAtMkyXX1k3GIUiwtqHIEgwra6rZdteV1RdXMp57CXivkEGcISyXzYYJMqEED6ywWLqN347nLbimhoUt2gmtsIEv0vxL0oZkr1LlijVQGCtuDLJIszcZK44JI0jTRBpHtMp25aYgmuW9umSuqySV7LQJYkhM8sEFud2Ms1VHQmNP6L5kUIpiMhvZx4cVtbEIghG6QxtGQzTPEgyNJ5Op1c9woKAO5Wo15kVne0blb5G8gfEBx171YjLDB+eLDHYDDsH5+ej0DqduwdeSszKSrNkKcj5VmHSA5UE9lehnIIJvI+iTRNl7B3Nk6C6DhY/UV7CuRiO88uV5VRFEMY3NeHuI1WdGiG4YUG1ERG279MYudq/OQRwgSJe/wDvbORjII+esA44kDrGqY+rEwSvtlcEe+WRwB91RABgfPRwMnA/TptbGvLq1SWnGmnGmnGmnGmnGmnGmvF6I5qtX/uTt/Xx3fj1+UVP3+06L/C88YZBH6gj/cEd/wC+mtGH1FRExr1Rbipka9rB7Ev3x/G7zjCCTYyD9rRh7mdg1O5qsb3dG9qq5URBpyz5dWZN23AIAA0zsckggsxJLZznOR7cHOPt1rrHwqykuxbaHbmY63ADvDBTgY6wGGDx/wA+z8DUbvUBiOWZpeavp8ZnOkEynK5GNpAjmHBF7WXSSOkf75Jq70eLyHhDIIbKG17pVfJWKSANJccYixcbrt+2bduNu5H6MG10Zdxln4vNLmIxszrXWSE3EDLGgqh+MhdhLyiMnGSW6Fl5IZBP6htTRwxxlQIYkCOq5YhuDkl3Z++ggXDdtSB64dS7B1xtfZezyXuxKTAqfPrfXmTY+Xa9Db7IwOdsjHh5LNxirl+5bGtqPK0yBZ19Iq8bgwpP3KRVqCxMyZPjWd9M/I9o3zYNl2QLtd7drW0V98p2/wCQWquz7nBtVz8LHcngKS+hPt4giihisXJLa8Ypx6EQVGqjznbbm337m7m1ahoQW3267DFuccl+i1usk3pxNLKiulv1ubhIkT0mkRw7sziqcTouOS321fnKEnEhzo8BcTLdVltGfPrnjO6W60pK1g6ghHOjWYI0yWkiIyX7YkhomkW6pBJbQwSbevASQuwuivJAwjlV2eKOOd2eReIlhd4lCyCOVgWAxUSGOm5sw7nmRlnjhO3i1FYDyxBeTtYgj4QK2YZ4zIXKFhA3AFnnFpSDb0+GTx7GyS5qI1dfXZqnIruZZWerqq9LjLEn4qiYcSpmz8tyYp6X29jX3rqMsQj4MqzUw/tJqt8jmrz7xGdlo0Lc1inB+NpVBWr+SzVBufGHc2bcVeOrtVDjZlYy1ksF/TkrRtlbC2j46luttL/ze/bgUWZkhtWDJPsUMoqgyUyabxPZuW3aON3WU1mVWiml+YxsXYXeEga8xUts9B2S4jjr7L3ZBtECYlLDIYTnlf1/tymPYZUcjiPG9XKiKiOqqaIG3Z9NmdBYk4Y9+V9RwGUqMe8BWx9weiQATb0ZIrQGT2sYYywdsFJDGpYNzIyQSQfkEg/bA1svfQxpyF1VuDLyKwiW2bV1eA7Gr2kBBqmKrRkROx7Gkcq9GuenRyPV7lfy7PpjX4UL84GA1iOJeWf8ChmyPkMMn9skYOBqg/qvKX3TboQeQSq8hPIHIkYgEY6+wH+Q77zq9rlpaqvTjTTjTTjTTjTTjTTjTXDl6NVf9kVf8fP/AK/8/r9cf8/TTWkL9SFtVgP1Ac5gW2UwKAd/kkuxj1kwz0bcElQIoBMjjeBECnmlPkId5XB+4NitYLynQjOfPOKxG4bkfQLMGjZXBVVRADkkZyXJ4cVA9yB25ewK3RXgFn/wrbQZmWMiZWj5csyBgQAqrkIVZ1ZiAOZjUnsFYj78wZ2U6uyaHkWTQq0tVbizPGsjhxUrSYDKxeQHI8OtySe7yMscct4ceSKf2e77H+RjWy/Exa+pTxRXq7x1ucc0D1rteUJLFbhtxvWtxMjj0ysteVo+EmVYn0SCGOrQs15LG3XILVhE5MktaaMOkkTRMkkEh4HlyVo2IMQ5ggOqO2ENHnqUhV29o+SmrjRdT0OFY5gmw8sx7Pdjlus32FdwnT8MuZ+I3Oxx+e5n2FWGvyOqopmZOxqNJswieOyyfI3/AGuxPErFnxNtqhspJv8AY3q9uu1bba2fZVo7RsNCXjudGLdau2OscK1Z45aVi+tCO7KiF0WGrAxmp3yaCbexfX1RtVfa4qN+1BeumXcN1kSRqEz05LOfWZopROkPrmspaES5nmIWHUnQWDZfXWVHUWcfX2TYPV2krIrDLbIljPy+eK5dFDHj0yPLGgyqaMxKq6j1cs7C5KdY0IsqueySkrn8y3farVe3bqy75Q3m3Wjpw7VSRIdphaDnNPYtvIZZ4pZmMsEskMcibfEpnSK0oSSPx+H7TulOxXr2BtF/a600tuXcJXmbc5lnYQolUIqRyQQgwSejI4NkiOt6tYFlkXoLCjXlrionZAWdhFZRY7lmYRaRLygjQLw0KEyXgcqunJNqcjsMvrolc+7nw5YC0sNpEjBgR5cSG/R71eWM7hYn25Kt9btuhRtWFp2LF2kswlr7hHPF6VipXrTySLXgkR3mcLNIXdHlWV+P7fJO9GKC49imtarZuRxyWIIoLPpCKXb5oZWkjtvagWI2JV4iCINGoiiaFGu3ZTwbWlFYZINtnLkxI8pIRJJ0roA5AWnBDDDGRrWGCF7Rk8rWkd0IJrlCg3pWYJD5XLMWwCfknkRkn4yO1BOTj5JJJNqPxdCrEBl7kxgkA+7DYABDDv2lAMqMY61t+fRHxz7N6KK6yWEKB/UOwczmgjgcVQsgxJo4MJrFKvVXMELsJ29Gse1RIn9vnQf09hMew+oxLNPbnYscZPDjH9gOhxwP8sfbXMv1GmWTyOSJV4CvWhQL+gYFxjsnvOe/uT0NW+8nWoFpxppxppxppxppxppxprhU6oqf7oqf54+NNadX1nsXg0/rSWzPitblMa3rcFt58BwhOso4VIdpbGmb5BlkWccwoshtc8w2TnDM0aoR0djqL+oKmPdpj6jQiSuGJVS+SVXpxnGCD2QQY/zfBOb8+m5E2yqOCO0NvA59OoLSE8GGGAYZGOw5DJhj1qry5/rrJ7G8yTIKizFhtfFNMxDA7I0aoFOtK7sHVpLCVxIso02VIK+d9zjiroBRiiuGaSMCLVZl9NxBGojDdSWHB58pOLM4OOQUgcVC4A+eic6uZIBZrrYbjI6kn0ELcOIyqxnkCqurqCxJLFsA/HHVX2x8JzXaVkTKNoVVbgn2Ei/01URYkC1tKgojd7bNbJ72rHCFzWm6yDjAR6gLGrmMf3pKqW4jbIzBt9qV/wASQtpuxHKpyDEwYqXyPzcUBUgIXYFsxu7t/wDNcS7nUrxrB3U5oDJCyvnmrADDtgKCemGTxDYOoUF1Pr2tIOotbKuuauolTDU8KNPKVh3XiiZeslwAIRTslopkY08w7la8r0azyuUcubyPd3V5lkaKawkInkki4My1l4VvTZiVjEQwVEaqSQGcMwBEMi8W2heMTR+pFXM/oR+s8iZnJ9UyJgM/MFlIkZnAZlLEE5nBoSlq7B1dX1Na2qx+p7GjgRAtiDK5SNIqgGJHMY8zWNGq9ikCJVVV73N5C91nnsSmaeaWZ2ce9mZmZ+sBjnPFAO8YH6YHxN9rrw1YkihhWCMoFKhABGmcHIXoN1kYAP3YkfM67aDeYxR+WiRZiT7QtzcmmuYU5wMcijhRhhVpmMYgliiRo1IITU+UZ3c1CSK7D1FU8QqhQeAUqWdmAz7mJ+TnsZIxjWzdcBwsnEgZHsysgxxAf4KAL7gc5Z/j4wd4j6SdfIhfT59N8qYFgJt7iVhkE1rBuGiyLPIbUjnKxyuc1VYxi9Fcvb1RqdERE50h4SvHxrbjjAdZZMYIPvlYgkHsHHTddnvr41yv5zL6vlW7dg+nLHFkfH9OJFODk57yf9c/fVj3JXqJacaacaacaacaacaacaaca8Pwfv1rWg+u9paiBmGld5nxfJLYlkL+hre0pZSrEhyKSY+5onWUQXjkRmokgz2TAvkjOkVRSYzBh8y1T9R4JYlr3Yk/vIpq7yOokjQkYBI/MkjxclWQEgqGVwQM6tz6XziWexRdwWjaKzGnJkkkUMQ0aEHgyGRlkkQ8ShVHUsSQKF5N4Cjm5LaZnsOwI+es09PQWkI8euhQjdPt/sZSLJBHGKKNA+UEprWHfYOVGe7RDUXJh1/oV424IhMvNCztkFiACXL9luMmAI+PAZyddCxBkcrI8qFpG9vZdk9xDSKw4enl2DFBkuCXyVXECN05fgk486ie91lDmhdHcKBC99EfF7XtQryV3jjsjvR6O6CRrgvc5yI16kYm124TKBKpjTg3JeZ4vnoqqgjjlegQM5I++RnF3CWA/wBGVGdnBAU+8AZHZYEsQxPxkY/yJBhJLxnGqiYJ9HWtkhOSONyEIaW5Oqq1rCLM8jxME8aoqFYpWIxyvORO5eSSGaSyp5sOSKzkKMBzj8wxkd/HFTgfYZ1G5UiqEnJjDMo95J9ucgE49uBnOclh+YnvUl9XEyOcdaaoFAhx47mkkSFmAD0YNGo8h3gkjdHEzoq+FGqR6DankVXIjdTdJjZcRyHLAe1cj3MOvcMA46J+V7+fkZ9J450OZlQEZQdgtjOASuCVOMgHrIyc6nZIqIWZHxXH0Zd3JJdpTjgAx5yJKt7B0kMSM7q6RGjGCaUUb0PZE9hF6IaS442q0mFVjkM6LGvukkKYUKZMvkEBmYIpwc5Y4A77GFbKtSpHXZnbikKeoXlZ0iATDFyoV5Hwc4RR7zhQByyP0NPT9rWs09pPVmsaeuLU1+EYJjVCKuPMSxkRDxa0DpwpE9GDbNOk4kjzSmCAKQTuIIARuYNvUm11EpUKlaNSqQ1oUwzB25BcuS4wGPJj3xGcA/GAOQdytSXb9y3Iyu09iWTkoKjiXIQBSWwAgUD3sf177OYubDWFpxppxppxppxppxppxppxpqs/6smrLDZ/o9zJ+PYnZZhl2D2tDmWO11OSSlgP2M729wVARQyiy4a1EiU2cFIUtRAR01gUfFQjIb51Qa/sFgRxSSy15IZ0EQYyIgbhPIqr+bhA0jccEHBz18TTwC+lDyWqZZYoobMU1d/XwInYozwxsxZBHznWNQ/JccsDOSDpyPyOwn4+oLbE9gYpM7XBkVthRpkFUAr46ikr90jvmCL18igYOO4TkjleRzGqQjGcxGJzYkWNoJV9THMZhL5bIBGVUNxwT0Qp6wddZRPG1RJGSVcoMRho5/SwAMlyqsVyOjHxDDBZWHWq9tzxIgJFhNjVeHyFD/cWaeqkY60XaxWNYVk4IH+VBJ5F7ReBTNVWtc8aP5IacQBQPHMpcBkUSRuevsAActy6yDxP/aBgDTXLMmGKPD6aAryeJ0C5YkciCo7XB7XJz2SdQekEjFyJ0sw8Yr3uaoYw4VmkwUhj1G55jDCviaiIijZ4mKROnVFa3knhRkjChLLKo9xZMYK4wgIxj3dt85HwM9ajM8yHJaauJP8ACo5N0x9xcE4ww+MAnH7am1pOfEG8YHLTOGUDiFe0Es8hgxDTvdICRfFITqQbBCenVyvf3Nc3+dDdYGX0+ALYDt6kuSAX4KVwVU4YjkCQc4PyMa3FJT6Xq+sxA5KBFHkghQe3bIAbPWcjrAIz1aZ9ODVsbdvrM9PmH2mN5LsjH42Vsv8AMYuNSJdXQYlS42f7kM+QxIbHNqKuGoYiSQyyV75oiMr4hfdSBgJsPGNtW9vlGJ4JZYRZjeSNS+PRiJkaV5cgCBWTEi8ssVaMOHZVbUeYbq+3eObhKs8FedqkkcE0gSSSSZwsZijBBJmYMWT/AAx8lldCpLD9A1iJ2N6J0/FF6dOnT4/jp+kT+ET9J8J0ROdKD4H26Hx0P9vtrlf/AFz++Qc/vkdH/Mda8ue6acaacaacaacaacaacaacaa4c1HIqL0+f+Ov/AN+/888IyMZx+/8AzGvCM/8AB/8Aeopbb9Evpm3WSRMzjVtGt1J8jyZHjjpWJ3xDkRUdJlTsfPBHZH7VVqPt41giJ06J8J0i+6eF+N7u5lt7bCJ2OTZrlqtgnGMu8BjWU/f+qj+4lvk6le0ebeUbIqRUd3sfh0I41bAS1XUDOFRLKytEADgei8ZCgAYx3Wvtf6AXpG2d7ruzrd9MkxyPPHXJMcuYjnNa9o08UrGoZHjGhHojSmIRyKrXlc1VRY630u2RXEle5ukBU5T/AKhJOB77BKJ3+5BPfZPZ1Kl+rnkLR+jYp7VMhzyArPGWyc5JMkjA/PQIXvpRjUZnf9Lv6QpU5kux3RvAoxuRWirw4RVkREex6NWQyokL2/iqOagkR3cq9E/hcqL6f0o8g7luDrggKfQxj7dlWOf3677+dfCb6nblKBjbNuRgAOQEjDo5AKt0QOhgkjHX31LnVv0Afp8a4IAtnjmy9lKFwivj53sKWkE5R9eqvjYfX4rIQTlXq4K2BGvVPyVURqNyYfp/sEbrJMtu0ygriexhME5J4RRx55dZDMw6HXWsGx9SfJZldIZKlJX45NaueXt/L/fSSpkZOP6fH4BUjrVrWodC6Y0HQvxrTOssL1tSlc0kqJiVDCqX2BmoiJItZoRrPtpSIiIkqzlS5HT+SryVUtto7chjpVYayHGViRVJwSfc+Ob9nIDswU5KgZOYbd3LcNylM1+7Ytv3j1pC6qW/NwT8iZ6B4KpYABiQABlzmdrC04014uVUTqidflP8dflen76J+v3zwnH/AD4/fT/n+f7A/AP7nr9dQ1lepzOMZssqi5do7N5MevuLmNQFwanyXJUNWUs2yqyHtzkoIw1lT5cBkyq+yisIs6mke/GRCMHHPGm36zXkmW1tVtlEsqRGpFPOeEMjxMZSYlAMjIGh9MMjxcpOQ/piW/ofo945vFLaJti+o/jlexPt+2zbpH5NuOz7UBc3KpTvRw7dHHukxEdeC00FxdylqzQbjGtOTgXeWDJep9/0+zoVd1x3J6W1mXN3QGjmormTWR52PhiunlPcpXhhwY5DmNGjCsnRpqSIxo0qOCSNwkztu3iG+qERTRu8ksQHoysgaAL6jNL6aog5sUCuVcOrKyhgQIh5x9MNw8OsWiN12XcaMG37ZuaSJudCG89fd3m/CQpt7WnntWIoY4prUlET1PTnjmrTTwESn//Z</t>
   </si>
   <si>
@@ -184,32 +191,676 @@
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAICAgMBAQAAAAAAAAAAAAkKBggCBwEFCwME/8QAMxAAAQQCAgIBAwIFAwQDAAAAAwECBAUABgcRCBITCRQhFSIKIzFBURYXYSUnMkJxgZH/xAAcAQEAAQUBAQAAAAAAAAAAAAAABQIDBAYHAQj/xAA2EQACAQMDAwMCBAQGAwEAAAABAgMABBEFEiEGMUETIlEUYQcjcYEyQpHwFlJiobHBFTOS8f/aAAwDAQACEQMRAD8Av8YpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpX8c6wgVkYkyxmxIEQLXPLJmyQxY42NTtznmO9g2Nan5VXORE/vnnzjx/+9/05pz4BJ8ADJP2AHJP2rRnnz6l/hh4510iTvXNesWtyxXCh6dokwG7bdaSv3NHEg1NGaQiEIZvwoaXIixBOVHSJARI8jMcXduSQsiyMCQyxneQdxHLLlPGcb8+MHFZken3jgOYHijbBV5QIwQVDHhyrbgpztCnj78VC3sP8Sws++vY3C/gXzZy3rdUcgAbJDuVq4MtRqquekkGr28dWNb+0pIyyYynaVIEqyr2x7SV79R/oP7kj+vt4rJGmgd5snyQnH7ZIOM9iQD8isQ8cv4nODtHLkvSvKHxR23hrSbScGLSbppcrYuQP9JqR/x/9wYaa/Ecle1yosi8pxx2Qv3fPUuG1TJ4sx3lWTA4C4yT8YP+2DwO/wCp9k01CiGKVi4wWEqhVJHldvIz4BDfOTU2OqfVO8Odx2Os1Op3q7S/uYRLKsgSdQvgrNrQqqGs45ViKIlaPrt873SOxFahHsIqDx9VHv8ATxIG2k8odpwcYDDK578FgRjGM1ZbTLlU9TMJUkAASgN27lCAwGeM4571kUb6j/jE7YrChtb3Z9dhwpDI4tputWnM1meruvYoJkF86ZFjjcvq6RaQIAVT+Yx7xK161rMrHGCOcAnseMjnxnn7feqGsLhV3YRu+VRtzDBxzxjP6E/843W1zZaDbqWu2PWLitvqG2jDmVlvVTAzoE6MRO2GjyQOeN7V/KKnaOa5HNe1rmqmXsj5+/7fNYZBBwQQ3kH+/sfHiveYrymKUxSmKUxSmKUxSvTbDYFqqSzsgp2+FEJI9vjcVBMZ0pZDhMRXlbGF7yHDaiq9olb1+cqUAsoPALAHx3P6HueO3mvD2Pft47/t96pz+Ynl15qeUheffE7ibT+ZKvyJ1bdt52RY3H4dUZpq+ONhPJTUkPet03u21mLrzY33talVuullOCYy3rWxzTyjuBCpd2aCSNUdJIpGEilcbVLEDJZQXGOA49sijII5UTMdrHA8UjMrxzRo0LnBDOMbtu1iFIflkkw8fKkNgMafPLkbceKd5vdXkQLOv5c0W9LEuocSyi7VAgbFB9myB123awWfR2Y3qZ6LPh2pIsgRHDeRBkIzI7GOMAYOcAKFz5wo4GT8AYxxjipLkkk9yOM/r8nnnk8nv278yFa/yrzhylouizayl42444zqaFK3aych2ez8lSdMtYdYsrbG1uhV+0/pB489kR97UPv31pTumvbYSJM58o5Likv34HcEeeePOe3PjBxVPOOfjJ+2f6/NZbwb9Q7xp4Ju920Snr7/AJB5V3/mKo1nXZUio1DQ9H1IEWvfrDri43KaG60iFTXGyzPkkzNN0Jzq6hgjuZNiM6uOvuXIyoB74OCR++D2bx+nbOKpLKCRkZGOPPPb+visT4V86fLbhfXObdR3Hx4492bjXft8vppbfY+Tt2l7VrDqksqoFB4k5AprayX9Ir7SOe0hWcGpdrl2U6yI8NlbIRE89gOGQsMZIzt55wvc9sA8/wBe1UYkYnPsAI2kEEkZ5yMduOc9/tUWXIfkzzXsGyy37XytzG+rZYPLVQ5+7SotMJfneRGMrNPFQFGQQnekiUOWiHIpjjihcQQQ05XA7Fx3+QPHPHbjH/FXADn+I88Y4wfjwD4zgk/rxVmv6Lvkf5ZcG7rApuNOUl5m8Ybreamu2eBb7hN3gxL3Z6akLZ33Hc2dVVljSwNXltLVztbuI8o1naRbtbGwMrY0wNplvxPby27q9skiLd2kgEhkil2gvb4G6GaHJYEe2TEkUgMbllzFi0a6sbuK7Rob4QySafeRKESOa2LExXSEj1orjO3eMyxMYpEDHerX5tM2B20a3WXbxMCSYIiFaJyvA4oDEAQsZ6qqvjGcNSgd2vY3N/LkT2WXdDG7ITkqcZ+f9hz8jAwa0ysoyilMUpilMUpilMUrw5O0VFTtFRUVP89p11+fx+f+cf38Uqpj9YrkjVeBvKWv403rhrS+aOKuV+NK7fYGpSBTNY3PTJX6ta0Owl0/eNYSNdV9bOmU8m1LXHdO+KSQ36c2FFY5r/DM0khhmUyp6e9OCGGGCEFwQcDIZRyeWbmpmxiElv6iSGGSKUxsR7g4YblZoiQuABsZgSx9oIJOTCLsdH9OCyuwb1poua/HbcYoChlwrXWdf5i0E7TPE4pSVBH/AK66QUIYon2ILShuJQmIkqS5ziNdQ6W4bJ9VMfykK2QB35wSBjgZBPfnnGaI5j7d8b/6smJuB/lYMO+c9yfAHIrpzTeVuPOKuZ2b5xX518Q8dK6zs7sMLevGrdDaezY5uqB0s1+TWq6VsJFsz6595BWHdSJdPHI8UtWTjKrxWy1uv8M2Af8APDKMcgZJHAJ5wATjvyOauLBO2eI3H8IIljVjjjB3EZwM8jGe+O+egp/A/jVa85zeZNz81vEjkONs+2kv9o12i1nc+F4dmyyYePNHIZUcYWNNrteAZW2A6bWNdJDn20ZpJsH4JEhxPUjgJD/UIQWGciRCORk7dpLcc4yAccYPNWpBIjspiAIVsMGSTaR2BZSeOckEjtk/bsqx4w8WpxvsNt+pFxHI0+MrY1frXE2mcuh2SJVsiqGLAWXL44s9Yivgq0bWlgwGRZAhK1QR0KhReslurZMxkDHjZFKDjGcb9pHt5z7c5IHkkUxrcTFtphUpywLoRtPAIBYZz9nGCfkYPUsrxo+mdWTv1g3K/kxzwxkSShquNSU+g1j5ZS9BJE2eRWyJaIvu38SKaJGaVjiGL6ucEPrPZqwCLM/8uDgEkjPcqpHOQPaP6A0MM2SktzAnf/14ZiuO4GWwRznJIGPOcVPp9BvfOI9/8iqvxl8e+ANd4b4n1Kp23lXfLa42a55I5L24lYysqxglXVvKLWa0O2tptPFsX1aTpLa9pR1JaJ0pGsyxIyKBHGkWFDFwSZPceF3EcjHwePB+Y6fHos5d3JkKqCRswTktjGSSQOCTz8ADN36LFjQYwIcMAY0WKJgI8cA2iCEImowYxCYiMYxjURGtaiIiJ0mWfk+T3J5J/Unk/vUbX74pTFKYpTFKYpTFKYpVWX+Im0rX9f5J8M+drIskT5X+5HEFj8QTGY4ZosLZNfe1I3sZXhLL2NSp8R0+EnuNrHMc5bbR3DuptyMqCWUkgkYPbnknOMfc9xmpjSbq1tzcC7Dem6IAQgcK28e5xjITjk574+9V/wDkjWtZu9elSo4aqzR0YqjkB+Mrvk/Ps5HtYqorkcjvVCgKNEVXIjEV7bjSYG2ZNriPG2RRkOWIwuQSMngEfy4zx3kBGJXcwuJIwxKFG3bgckk4xtxyTn5/cV9ef32dBspErGkDCJIOxxVEM4Go4iMD/MJ7Fa16e3o5H9ERUQa/IqIltBHuUgL2yAxIHblj4PHGOwz3rAuHuEQAFhk5O0EleM85J5BODg4zwa1nJvGxRpD/AIZYV/arF7jMXsXa/lU7T8KRyIrVRU79fx+7tboKhVwig49wwDg+ORwTj47dqj/VkBxuBw2T8Ek8nAzkkjknH/dftF3zZDFYxZwBsTtzyOjRunjcqN6awoyI9RtJ0xE/d12jFXpEXxiBhiCMkL7UJ+/IAxg+ST355xVab2JwUAC5ZchdwB4Cg8EjOTznGT4rdbixLi5hxHEmTZKKJGtj/wA54Xq5yKnQAJ7fIj3q5wxBRr2OaidIT3TDMu0lThuc5IHIGOTwcHPAyfAGMjAlooSUWQe1cj27jkn5AODjPck9+O1XN/4WbgibE3byj58slhR212q6hxPSwIo3Faq7JZN2+8O+Q5jGR3xh6rrwftAez0dMO2U9ShTu/DK0ikkkgHbknvjxjwFPb5zn4rA1FPSKRlcMcufgA8fJ545+2PirlOXajKYpTFKYpTFKYpTFKYpVev8AiNdOfeeKPB22DCQq6J5M6lKkOGnsrIWw6nt1E9HJ/wCPqs6TXv7d+EcNF6VUTLkMixzw7mxvcoAezMVJAHnd7eBwDzk8VdjiMqTbQSUiMhxzhFZQ5I+BuXnx5IzVZHbdHjSteBIaNgJaRn+pWje0zIyMcr1ecfvJUADer5DhOIhmuYrSNeNUySuIYplwyhzjAJGG55JyrBgAPgjgA45qm1uJbZg8MuxsjJBBUgfKsSuAcnkAjJHfmoaed+NbmdKkWoKEsqKQ0iGM8wEqVHPICEQXuGrHflEkIUcgqmd8BXqwUgxERi6LqepWWk3K2898qnAwrNh4twDIrMxAJKkHgk7SC3Pff9H0jUdft5LiCxeZlYhgkeVlUfxuFGCFVjjdgLu4HBrRq9o4cK2PABCp49j+0RAP+QL/AJI43scNRfeorEKiox7XIFfl/aQLyjauZVpqaOokDM8eM+TwWIXkjGCFJBzjj7VGahok0bbQqrKG2tGDGjDIB5XdknJIAIByCuc5A9jqukttZrRhqq0SIqqjxQJUgyL6q5w3IX52s+392NY5rFcREIQquINOrUut2gOxZgXzwgwSS2VH2yQPbkZyMAZqu36Zv/T9drVo0QgNJJkL7Rl2JxkbQRyeMEcgEVvRxPHLDZHIB0SSKO7+a0rPtob1IxzCiGCMJgUjvY5Ue/43tc1EcNjV9COyhGssf5u4GQqwAypjxgqx29/GQOeeOxrH9V4plMGHjjLA7uFmypV8DnCDsueSQK+gV/Ds6xUQPDbed1poqxou+80W5ms9E/lN1fVtZ1wkP5f6l+1nxJyuXv0aU5Gs/HeNKgngW6EzF91yxjbjBQKoBHnnufHwTisTqG6gubi1aCMRAWiF0xgrIzOWBPY8AYx4798mfrJWoCmKUxSmKUxSmKUxSmKVF/8AV80yt3jwq22rtg/LAib3xfYyXINj3AAm5QIJ5Lfka4bXRwzHG9ntVE+NO/VVRyaj1tdXFhoM2o2hIudPurO8iwxUExzqCrEfyMrMr8H2knBIArcugoYLnqS2s7lBJBfW17aSIcEMslu7dvkFAynwyjHmqtIuF7uVLt6K3iyotJr/AKk2O7Gxzo46giDc04SqB4HpLhjSQ0rnMWPEQ0mS+PDiBUi7/EHTY+mrfVYpIXv72Fo7ezaRATdoB6iyg/wxwvhSDh3ciIbXkQ1Kp0HeN1BNp7RSpp8EiTS3YjOBaux27AAQ0jJkMoyqcscgHMZvI1ALyP5hHqNHK1njTimk1HYLTV4t7Pm0U3eNQQdjFp9streqmxJx6iwtIFpYQaKGYcn/AKIWbsscMCaScz5H64/EPUOltJutVuBqfUWq3Gt2sFw9jCtyNOv2lje6tLe2nhmjhm+nmtrR554xApuYRZym8ijRvo/pLpu11y+t9OsGstE0yDS5XgFwxhbULUJIsdxLcRSQyvbu4mlSBHJIt5WuEMLZWP8AqB8Ly+RKLim20ulttrmXNbRjuYZNM1jjGRFi22xNv628BBHstzU2zKo8qFAng2myn2MeNT2MWxYyTE+CV1SXra26ev8Aq2w129tNJtrO8vHtJYdV1LqmGWWxsFsJ9OaVrGymtxdxw3Vxbz6fHDA81zDLA53lqbO36Wutat+nL7RbG51Kaa3gW63afa6OwS5u2u4bwBLq8hmNu00UDx3ErzKkNykiyMjJ0RyHqAtHrrSboVlJg0Tpd3ZX2mJY3OwLV149jtoSVdfsZaGNAGevraexsq0b5kRuwUMKRI+3LMUQydR6E6nmv7+yi6hhFzdiPT7ay1mSC00+W6lbT7adr19OGozXAWe5vILe7QRyix1B0hQrb+q6ct6y0f6LTbpNDu2g04Pcz3OkpcXN7HEkV3PB9EuoPZxwlo47aeaJUmhW7swJ2VpBEX2Y4uIGXRglB9CgsIYzjbDarFVpBoaPIH+GvYiq4So0LlErXuYAinP0HuA9x5OC3JPgAjezceNuWyPHIzXJByBt8qNoyDxj2jjgnGAAOSeBya+j39D3j5/Hf02uBYRo7o0rZHbvusxjhPE18jZ9xtpqOEx7Wr8TAtEBionqiCVqKvSqt60kWaESodyOzlG8FQxVSM9wwXOe1Q+po0V5LE+Q0YRWBOSp2KSp5PIJINS2ZlVgUxSmKUxSmKUxSmKUxStLPqIVz7Hwy59cEbCyarS12GKwr0GJT6/bVtr0V7muY0bhxyNer2q1EVXORWoqZC9Q2UOoaPf2dwgkhng2ujEhSA6k5xg485BGMDkdxP8AS97Jp+v6XdxHbJFcjaQAT71aMgBsqSQxAyPP6VWD5q5PS68MucrbXlZWbDUaFdV0mO56gfEbNlRKEtgjuyGJWlgSJrkmqjlSMxy/jsbc+aL3RJ9J1uwtbjdJbvc7raQBiJQMt6YyT+YzKqBQwZ2KEHcFx9NvqsN7oWoXNmfzVs9jgFcozkIWZtuBGFdjkgBfkcMYFPL3ifaabRNEjaPFteP7Hbabd9uPpsCs1vStW2XSqmREvIsvXi1FjPvJkfWa2QtnOkbpJhJHLOsqmuKWPZQokvR+kNUsZ+pNWl1sWep2lnfWGlW2pXMt3qN3Y6rcq9pLBcpcolqj3sipbwtp4lP5Mck5jNq0gz9QhntNEsItM+otLm5srq+ks4Vt7W3vbG1AmMkLRO00wtVk9SY3bqsbSOsA9yq0Ou12obXbA8hP5FlyCSLmpu59lMcf/cf7+C+CWXYwogat9EeyZKZMLRyEslrSRYkNLSRAklJGd32ztJLPTH6ei0CKJIrO6s7e3gx/h57WZZkhgnlE66gkBjaOPULd7c3IkkkNrDLFsetCnvTczprY1c3DNcRXM8rMRqyTRtG7yxQiE2kkgf1DauZNgUATvGze7Y7hmo3yyoL+Tue33NJU3NrpeyUiTotbF4/jmkuuJkbY+S9xiQyxdWlW1AOx/RJKOtrJts2Ca1rBosQjec9S3nT9vq+mJo+lWF5fWljremXAimmfXpY4Ws4ZtL6d0mWaL662tr2S3+vGy3gjgaVbW5z6qnY9LstauLG/mv7+8tbS7n02/gR44Y9JjkkNxJFe61qEcbfRSz2Qla0bfNdNMY5LmEqUY7eeBfFU611OPtl5EefUtQmbElZ17yqu0m1U+xSojjmPEyRaUseJFJJJPfEEWaEMNhAI6SqR+7a/raWejqUmH1t3aWpMZVI7lfqoY2mJhiZlhn9zlot+1H3JltoDcg6a0WW71RN0BNpbT3eyUFntXltJW9NVmZFMkO/AVzGCUUF1jOQv0zPBnTk0LxB8c9WQqH/T+JdQOp076kOtoCXT5CIqr6pIdZKZEVVVEeiK53Xa7XpKenptinIAtYGAPcb03gHgHOGHcA/Iya0HWZPV1XUZM5zeTjPzskZOMcY9vjj44ra7JGo2mKUxSmKUxSmKUxSmKV0X5O0Atn8ducKIzEKyw4p3waCcnbTPDrdhLGFyJ+VaV8Zo3dfnpy/36zD1EO1jeCPaZPppjGHxtLrGzKGzxtJADZ4xnPFZ2mOqajYs5YILuDeUJDhDKoYqRzuCkkffFVIb2z4103xXsv8AUNRDjA3/AFKTUyauEnta3s68qfiOGNLkOJIe+CpGTfmMRRQ/tAyHMeQbUd8v6VHrfV+u2yS3BZ7eVZHkz6draRRSguVjQBRnIjAILHcTu7g/U+rPpHTGh3TLBhJ4XiRWyZ7ppo22Zfk57HBGOOAKqkcp7Tt/J/8Ap7hPdtx2AvMVdbbXoNVsW+bjFkaODjO3q3rrhKAUxJViEio19dbXbo9jMCdzK0ls2TPjih7bruhQ9D6nqfUcGkW8nTkS6fq09noumSHV7nVrS5/N9eWB47ZoysvqwWbSQRNtaV4tkDmXn+kapJ1TYWWgzajPDr0sl5psdzqN9CumQ6bNas0XpRMHkjcklLi5KyThW9JHEtwqRatcYcL6xfxGaVNvnU97btjW8Ter+1hM1mDX1tPbMsodVArbCXCvIdrewmE1u3bYxXzqCHayDR4s4MMJ6eruuNY01m16DTm1TTLUPZTdP2FnNJqk93dXVsLSWa4uYo57KazsZnivrU20wS7e1iilkgaQx5vSvSlhcxrpB1GTTr24KXkesXt2iaVFa29vdfUxQWkTvBdQ3d3EjWN2Z4xJbJcyOEkWPdsNxtOmiotU4r0XbUkXU6oli3xKoVxTRNTZU3VhXU2y20eW6zotqtNn1ydYQqehN9ukRbCPZCA99f8AqbdTvNJTUda1LqbWNJFvYW11C2izXbWd3Pqq3tjaz3mnW0kCw32mwWV/bQPdXKu7ztDLA5QSNbpvGjX8smn6f07pl8JL2S2c6x9Kt1bwaabW5lggurhZd9teTXlpJKIIHChGkWVNwVZTKXuO6n434Q1Hi3SFdCtNoWm0yohw61k0FVQ2botY60kJH+yWferZSm1MRxFcxSnlEKj3DU2T/SGm3Ov6rPf6hLJNZWUxlaN3fE1459WOLDBj6MQ/M2HdxsVdoyK862vbTQNMt9PsIIre6vITFHLsYNb2ccbQSSLg7RLMxCZ5ZsOSWI4+lLxlq7dI470TTWtVjdT03VdYRi/F2xNf1+up/Rfgc8HbFhK1fhe4XaL8bnM6VfoxF2Kq/wCVVX/5GK+SpX9SWWQ93kdzjt7mLf8AdZxlVW6YpTFKYpTFKYpTFKYpXq7uph31PaUlixSQLium1U5jXernw7GKWFLY13S+rnRzka13So1yoqoqJ1luVFkjdGGVdWRh8q4KsPtlSRnsO54quN2jdJEO10ZXRu+HQhlP7MAaq0eS/iDYapqlvxJs8KVLpYlnaj07dIgmuHDbEdJJUSVapPZhnRFHDsK9HdFb8o1f6KMyfK7Pf9B67c30R329tcTo5IZYriF5izRyE4WNlTaxDtlCF55r6lt73S+utDhtJykdzcQQmSLcvqWtykQxJGNo3oGDbNpwyuRjIwKb3nh473msbMCq3WsAwI7E7627cEywLFnTmsPS2YmI+OVCoFr4ivjyGlKxjEeVj1b3bp3rHR+pLYXOnXA9T+G4tyQZbdjg7ZI8jMbZx2ZZB3BArk+v9GaroshW6tzLFnMM4VtsgGSArHBVwBkYIdTkDODUXMSqupNsevi316R9je1U54RkjtPKsaIDq6jKMoovzoWENqxwsaRoXOGryCKRBndIzWGlQpFNLZ2+y2try1TKuUW1vmM13GVLlcTSj1GdgZNxIV1X2mKszqt5P9HBe3G+4urWdgJEV2ubSMxWzo+wMphRiqxIVQ53MpbkSUeNvGYNBiVtLEhLHs5xmzbJoQj6WSZPiZHZ8SkKRI8btqOf12Rpeun/ABETiXVnUH+IL55IWZ7a3Jitx7gVVWyxYHB3sy5JbJAUAMVOB9I9F9Kf4U0sRzoiXdxtuLp8jG9hgKG53LEh24BxvLZAIFWUPDL6fUjyz5F4Zh7nX2FBp+qbzre32tm5ggz3wtbkQ9gl0sBsgbnuJdsqEhK4wzDiNkGlhb2NFJa6BTVR1FBFbybbG4Lf+Q9RdySrGpkX0gMYnAGFdcFVG1w6cCE/FDWdEj0K4XalzqaLtstmA8LSn03knbsIRkloixGfcuHJarzDE6b1/TtVcv8A8ucrl/r/AMqufS9fJ39/FcsUpilMUpilMUpilMUpileFTtFT/OUsCVIHc8fp9/270rV3mrSSznfdmqB29YawFKKxRieyMrmq0hSoZPT2Y/2XpURSMd01yu9m5zTqLSZobq8uGt0uLK7JkYlVdYSUCsJg4ZcZBIOCOftztGlagBFEiztbz24AU7iDIqncvpshDA55xnCkFuARUYPPHiZwByNX2ELceMNbtYlgE4pYJdcoBEGcajK9qiewY3qj1b8wXDInfsx6KiZwG+srLQtTOp6XE2n3ClmDwyS2seA2C/5biAoGADAgoTwBXWbPqLWr2yOm3d495avt/LuPSuB2wAfUUsGGSeOQeQSc4hPL9H/wv4t2XYdq1fUrUs+2mHkQQ7Dtki6r9YjFRVfX67Gmp7xgOL7EfKnkn2jUd8DZ6RmsE3D1z8Vuo7y2gsJbqySCPCyem0MT3BVWAEzGUlhgqzKoRSw2hCTmpHRdItdOu21CCBnuGBVS6vIIVJBzEAuAxxgsQWbPfBIrP+EfFrivWNtIyr1ukMQcpCDR0ZJhBscv7Wuc5ijcjemuVSP7VU76/GYGn69JcqjO8QWTCssDBhJkkkjZxgDJ9xAUAkkGpnVtT1N4yrTzqu3gsfTRMg5DZG48EggA4yvOKsheGfBqagc27uq1gDmwfQJjh+J0syxWQY5IYF9WsjxIXyjQw2tY9TuaN5Ec9yfRP4faTd+u2rS2v01v9MYbf1VKyTSNjMiqVCqqJgFgADuypfLGuG9V6kkkS2AmE8yTGSTY+9Y1OWwzZJLSN4LNwM8bVqRDOu1o3amKUxSmKUxSmKUxSmKUxSmKVxc1r2q17Wuav4VrkRzVT/CoqKi//eeFVPcA54ORkEHjBHnj5oCRyDg/IrA73jDRdkaRtvrsIyF9ke6O6TBe7vvpXLCNH9nJ2q9u9kVf/X+veu6j0n0/qm4Xml2z7uSUVomJz3zEyDnn+Xuc5NSNvq2pWpBhu5U29gSHXA7cOCPtj447V03a+HXA129z7LVpZkcqq4bby0ENf+F+M7X/AJRVRV9/b/n/ABqE/wCDfQFw5eXRmck5wb25Az8nDcnHHPjAOeTU3H1v1LEu1L9RwRn0I885xjg4xngHcM+MZByrSfGXgrj6Sybq/G2vRZo3I9k6cyXdyxkb/QojXUmeoCf3RwEF6/n1RqL1mw6R0D0jobK2naDp8ToABLJG1zMMDw9w0oH22KmMnA5qNveotb1Hi71K5kXGCgcRqR8YiVMj5DFgfgc572axjERrGtY1ERqNaiNRGonSNRERERET+iJ0if4zcAAAABgAYGOABxxgcDsOw48VC9+9cs9pTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpXFyqidonf5T/APO/yvX9+k/t/fPCcf32+9P7/X7A9gfuePmtNZXk5vGs2W1Rdu4O3eTHr7i5jUBdGp9l2VDVlLNsqsh7c5KCMNZU+XAZMqv0UVhFnU0j78ZEIwcc+tNr1zbyTLdaVdsollSI2kU852QyPExlJiUAyMgaH0wyPFuk3D8sS9+h/B7pzWLLSJtC/Efpy3uJ9P02bVI+ptR0fSgLzUrSzvo4dOjj1SYiO3gumgvF1KW1mg1GNbOTYXeWDsvifn+n5OhV3eu7PS2sy5u6A0c1FcyayPO18MV08p7lK8MODHIcxo0YVk6NNSRGNGlRwSRuEmdp2sQ36oRFNG7ySxAejKyBoAvqM0vpqiDexQK5Vw6srKGBA1Drj8MNQ6OuLojVdF1Gxg0/TNTSRNTsIb57fV3m+khTT2unnuriKGOKa6ksRPaenPHNbTTwESn/2Q==</t>
+  </si>
+  <si>
+    <t>Probi bưởi trân châu sương mai</t>
+  </si>
+  <si>
+    <t>Probi xoài trân châu sương mai</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAAHAQEBAAAAAAAAAAAAAAMEBQYHCAkKAgH/xAA8EAABAwMCBAMDCgUEAwAAAAABAgMEAAURBiEHEjFBEyJRFGGBCBgjMkJWcZWx1QkVM5HBFlKh8HKC0f/EAB4BAQABBAMBAQAAAAAAAAAAAAAGAQMFBwIECAkK/8QAPREAAgEDAwEDCgQEBgIDAAAAAQIDAAQRBRIhMQYTIgcUFUFRU2FxofCRk9HTIzKBsQgzQsHh8SQ0UmKS/9oADAMBAAIRAxEAPwD0AVrepxSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpUVhh6U83GjMuyZDpKWo8dpbz7hAKiG2WkqcWQkFRCUnCQVHYE1TOSFHJJAAHJOemAOaerPqHr+ZAA+ZJHHWsjR+EPEB+0u3j+QrajoCeWO7MgpuKlOIS61z272n2xht5kqcZddaSlXIQoIB5h3FsLtojP3eIsOVyy7n2YLcZyowcqTwSNpIJXPXF3btOLdZAZQQHVsrt3HAwWABIbwlc5OcjhTVgTrfOtkhUW4w5EKSgqCmZLSml+VXKop5hhaQrYqQVJztnNdQ5BKkEMpwQQQQcZ5BweQcj2iu0VK7SRwy7lIIIZc4yCMggMCpweGBU4IIqTpXGlKUpSlKUpSlKUpSlKUpSlKUpSs/aB4HP6mssHUt+ui7Pa5y1PRYbMZw3GVb23Vse188lCGGY8lxBMZ9oSSWUl0tFDiFJtzOIVBc7S20qChGEbIDtkglcgcxhiASSAASO1bWr3JDIRsDMrYwzFlwxVeSFbbnAkAycABiQtZcn2jR9qsb1gsscxEw3Ysd272ttlN6UG0lycyqWsmUkznPopdwWsL8IutNI8B3lTgrjWLTbPGk8scitFDLdWoC3AVdsklvFzlEeQBWmdi4BYLlXYVNNP0W9hNpKbO3li2XE9va6gHkt3lkHcwXcmIgjyxhpGjt18BYRsSndjdISNQPO3aM3CVYIKrRBYQzcLjaJ70iW/Mae+khKclstSEx23OeOhoOrU+FOKK2FeG3kG7SkyxuvmMLW0SutxcwzSSyyTDcZ4j3qI5UMGURod7DeQUIRcbH2WAt3M41CeK8uJVa0s7m1RIYrdlQQ3IS3kkUOwKu0hjCoVVCsq73q8DTOlNTwWhqeE+/GZfCFmXHlQ5SpBcRHmyoMlgrVHC0qZeUGklvwuReV8uU2U1GC4PfzTTQorCMbY2RZJlkRJzhTJ4WUq2GTwqVKnZkjneaXJAgto4La7kdHdGjmWZreJ4pJYEJAhO9WEkQAZTJKPEGcAHCuouA2oLcxd7laJ8O5wo8iSu023lkpvs+Ay+oEFlLSoqZsVgpXJjiQVL5VKQBztpPdiuo5WjRNxaaaWGJWUrLJ3bFf8sZAk6GSMsGjDBjwRmPy6fNCkrvsIhhimkMZZkjEibyrO+3cgHEcoUrNhtpDKy1ggggkEEEEgggggg4IIOCCDsQQCDsRXaHPw+B6j4H4joa6B4+PxHQ/EfA9RX5SlKUpSlKUpSlKUpSlKUpTrSt1uA2p5EThpc0vzpby7dqtVviMuSlOhEaZaY0pqM02+XEtRULbd5WGwhpAWsICSqulql9Laaf3scsodbjulQPhSO7LqpD+HYCCCAOmcc4FZnQLAalqD2xSLYsDTyO0fiG11G4MuDuVf5OuMYxyTX7fdVATHiq1wXQsuOPBMSI4hZBILiytlSucKBGFKX5B5s431lc9oZzLI0kEEoJYyKsEEiOSWBJMkbPnccZ3P7Ca3TpXZ2OS1jRb25iKBY4z39xGwAGVVFSRFxt58CqOSwxkEW0jXUCayEeyRDMaK0tLehRlKCiCGlt/QIbbUlBITypGCMd8HrRdq3ePbsh79QwRpba3yCSQpAWJVBAzt9nqBBGMnJ2Ha3nDJPOLaYBmWO5mA2K2ZFY947sGkILKfEeD/AKaqEfWV0fQwywY+GAXShyPFdKgTggNlnkQSchXKEqKNsHFcx2j1CcRxI0REeHKm2t2B/lBUp3XDPxkgAnjOQTXWk7KadbtLJKk4EoWIFJrmLaQAVbd3niC4AAY8HpyeLz1Rqu7o4YasuapbkS5NW7w4z8JXsjkN+bNhxGnY62+Rxt0hRCloKVBXmBJAFTvQtSu70gzSDegdyEKqE3AbSpVVfcSOck4Kk5wedV9qtMs9NLraIQj7Iy7sZDIV5ZTyVAG5toJJ25GACcaGKUVqUtSlKUtSlqWslS1qWoqUtaiSVLUolSlEkqUSSSTmpL9fnyf6n11B/wDr8K+aUpSlKUpSlKUpSlKUpSlKUrYvg3NS3oziEw64PCjTtPXBLfh86y461OhhaCMqSAtDSVFKc7gqUlIUKw+vKnoe6aQZWOWKT+XcedyjGOQdxCn4HJ4qW9iEaTtDbxxqTJLFKvDlcqoBYEEhWGMna3UgAAmpSNqDT0v24S7vDYaiznrdLluOFKYUsOhAalJOC2orUnKuXlKCVBWMVp7vrJY5pe/QRxTtbTOQ+2KXftMcj4wpLHI6g7hhhXpKbTNUtzai3s5pria1ivYbRApluLdkJMkIUkupTcwG4cjGAwxVt6gmxY/0DDjfLHQ4444khJUlhHOtRI+wEqBCgDgKBJ9OlcpDHuMYVQiF29pCqCSQMjCk5zyMdM55kGjwXEzLLIj7ppI1WNuQrSNsUAHBySMEHkng1VtIymH3YrokMuqV4eWgopXhfU5Vy5ykhYPKlWBjfymrmnBWK4O7fgkhgP5iFJBIGNq4IXHUfHNY/tDDLElwjQvGMP8AxHUMvhJACquQMsGB5PU4OQaybxUKLZwwuDIe5nLlcrBGAxgraRLclqJV9rJignoMk+UZONt9nreOISODkmNMADAwDgNnkHJPq5z8ufN3bC4eZUGwKguNhHUhthJAA4VtoyM/H1ddQKk9QGlKUpSlKUpSlKUpSlKUpSlKVlDhtPkxm9VxY7If9qtkJ91tSwlJZhS3C4lQO5DntCW8g5SSFHIrDa8X9GXCxoZGOw92OCygtuGfUcYII5BXII5qeeTpYX7RRpNKIs27mJiM/wAYSRKhxyDtDklSMMOvTNULUMmx6GteqtWXidYbFYoCLtd7re9QybfDtttjx2oz7c683K4+EGoRQiQuQ488Qh1xgEhSEpVrqOCBmMJhExkkbMQjdjJLIN4XuxkMQwQnwE5UFeea9CMLxnt5e97gQxDbIXRFhgj2xEtKSNgZS5IDBSC28AcHn7J/iAcEIeoX9PxpuvtXOyLoYcG5aa4eXx+LLcajRmZSExpzcC6SX4jl3g+yCPa3o9yS7Fctpl5eDVpNFljW4EpsAsqqcm5EatCwkDMT44olQROGUzNwGJKHw1l7nWrKQ2oimvw0ZcBFtJZu7uI2RhGGCRy3BlM0bo4i8IcKityTtBwh4y8OeKVnlak4f6lgXl1h6RC1GwY8y1antt3W6/Cj2y62G6R7ferFdoIiuQnI0yCyVSYz7aFurZfzhLiwSyaUzMqu6M4kgVXN40kcawSW9wjyRuyqUAMDlslRgEgnI+d3er2sLWeLu2ik2qJZJO6sRDK8t5DdW8qxyREsZPBcRgkKxAZVBG4HGBJj6M0uHVuiVMmxmnWXHFLSlu32tx1RwTjxDImJUsp2ySDuK2x2bgVbUSMT33cW0TgljjYA7DBOM94OSRkEnn1nyr23ut07WsZQwDULu5jdF2l92YlPqJQIABu5GBjHIrW6pNUBpSlKUpSlKUpSlKUpSlKUpSlX3oGR4U3UMYkpTcdHahiFSQSpKkssSG1JAxzKStkKSApJChzBSSBnGazj0VqGc/8Apz8qAXAKgEr05HA4ORnIwamHYJwna3RDgHF5G53bdpEbo5QljgBgCGJVgV3DBBNcxP4hN5vur4PDnhqVMXOwJ0/qHihqGxNiKIur5ejZUBu32rNyutpsNwfTHjX2LbLDd3Zvtl3v0C62mEu+2G2KRr7Q5zFAJ5JUDytHb9/E5wneI6SS+COS4WNJGjdnhI2xxNHKwimkx6d7UWY84NtbwuIkeSc280YLPHGySxw+OSKJmaPcvdyAhpGR0G5EYcL9Y/KH1pqDjZpDXfDzh3L0Po7U2o4T2v8AhZpR9dp0pqxVk1Jb7Zd7Bqh2z3mEYkV9jTVsmPS9V/6buES8tXCWJzmmWG5CZHBoUVvZXEF3eRXM8kUkGk31xIhuImlSVIZ4RKGERM0zIRGXhaEIyoZpGcxm51SS5vLNrK0lhjWVLjV7G0SVbecJJHJJBcyxNH3uyGCNw8gjlEpkTf3SKo6U/Im4vDXnEzhbr2yaV1DbIk3Wd34VavgOwLE5aL1ZXy01aXFKs828amua7be5DFw/1NqKcbbP1DaG4enrg/NbuyHopqWmDS5LjT7o29331tHeooE8jJcx97Kxw6x2+6MorJBaxmeONy7hQ8WMnp2rT6gY760e4sWE8+nyyySQwxvbPhVVmQySBfEwa4u2ETyKUTeRLXoV4wTy9B0TCPMnw7dJmKaUFApceat7S1L5vNzLKDkKJLZSUHCubE97PKRaMxUrkxAg7j4xBGZDubJJLN4hk4IAJrz324wupJGCrANevvBB3KbtkXAUkADYSCOHBDKcYrCNZ+oTSlKUpSlKUpXUH5uXB37qL/O77+41JvRFh7lvzpv3Kw/ndx71vp+lPm5cHfuov87vv7jT0RYe5b86b9ynndx71vp+lPm5cHfuov8AO77+409EWHuW/Om/cp53ce9b6fpT5uXB37qL/O77+409EWHuW/Om/cp53ce9b6fpT5uXB37qL/O77+409EWHuW/Om/cp53ce9b6fpVo6/wCBnDfT2htX3bT2n3IN2i6cuojShdLvJLaX4yoz2GH5rrS1Fp1fLztkoUAtBStKVDE67plpHo+pNFGyP5nNhjJI2FwNww77ckcDOBn1jrUv7AX0sfbXsw8ko2el7UHeF2nLdG8J8LdGwDlSQQQSK4QfKRsGsVaO09xA06zLlRtG6f1RpriNG09Z7VqrU1x4a62tDEbVD1gst35I67rpK92uz6kQ6xJamfyn+eqjNuzGG2HtAaUHkgS3KQb0MNxbGS4eNTdxso2Sd3gCN4zIuAQpZ4sEYdl979q7W1Lz3cQuGfvJo3gW1U/+FKCwmgbl3nBWDEQUgospXeHVBwIXwZuPGzivrLUF54wWezX3jC3Z7hpy4WK72Z7h3GF1tticYi8TbnCuB5V22wuu227WiNb1XK06idtDM155y8vexS261uDS9OsoH0x5IbF5VuIZo5UvWEJmBNnGQABLOokRzIsckSyFMLCpbVuldntQ1TUNTuoNSjiku4la3aFoZbFTIsR23hz/AJiQMY3SONpYbnui2WlwnWz+GvwzvcviXw0u9xmWPUGl+FlpZm3fVenGn0Iu+vkWp/TNu0pdbu1Dsrt9Z05HtLOrI9pmRL/YtPwZ9kdjS7dqec+o4prlXvDMsUsTTzSJDby4/hwsWuBMsZMwjLCR4GlU28s0qSALJbhWq5d6RKdInWBonSC2Xvb1FIa6uj3cBt+9xC1wUVFlWKQ3MUKujDZOWFembRPDjQHEy3T71qK0Luz0C9TbLDkCdc4CW2YTENUloMxpbKVETHnSXFJ5lgpGyU4O1uyllb3WnTSzoXYX08XDSRkd3HCG8KsP9RI5OcY4wK8zeUY3dlrVhbO7I3oS0uiv8NiRd3F3JGxdFwxMSqNuTsIK5PFXl83Lg791F/nd9/cak/oiw9y35037lQDzu49630/SnzcuDv3UX+d339xp6IsPct+dN+5Tzu49630/SnzcuDv3UX+d339xp6IsPct+dN+5Tzu49630/SnzcuDv3UX+d339xp6IsPct+dN+5Tzu49630/Svw/J04ODrpVQ/G+XwfrcaeiLD3LfnTfuU87uPet9P0rJQub6cZB94BO2fcc7dM/E471kq69fSr2Wh5kFRx23PfcgDYdie3pSlQBqZrOFJCT3z2/43+Gw7mlULAdfwqM3qWGrAUcdfMOn6/wDfSqZGM5GPb6qBgfWB8yM1PN3qC50dSD7ziq0yPaPxFUrV5YuGkdTR23ELL1iuQSAoDmKYrjoAPUbtgZAJHYE4rp6ggksrtD0e2nT8Yzk/0Azj1nisvoE/m2u6NPjPdarYHA683MS/Ljdnnjjng15qrXxvTpq8ah07dHW7S0zcr6YxcW648h1EiQkNqMNJb8LxXEvHn8NkJVy+IlaQo+KV7TRWN7e2M7iIQS3AjY94TJhSFyqAhFyf9RC843ZNfbe68mcmt6Voms2UL3cktjpXnCxmERKpjiff/GdWMiom3Ee6QsviU5xWn0rg/wAEtSXOddrlw80jcNQT5Mxx+7MtuW928MzryxdpDNzYsk6HapLsi5QYktxiUw8mTPixX33TOZYUMdD2q1cWgtI7+6IWQy27tcKzksXUeJhJ3DJCzwxJFINisyREE7Dm9U8mPZWfURq1z2Z06KTuI4rvbYebIZVjjdpJYgI2u1kmWK4uZp0ZnZFmdZEj7xdqtDcSZ+g5mnE6fi2m1afs1mkWyPYLezGhWqItbwLnjQGWYzLDq3kJKnihDjvi4IU4t1ZvWnaW6W9t5izSMIWifvndy7h1LmQP/EL+BBv3KdngXHSsLqfk20O+0a/0pbXzYtew3Fs1vbrCUt1R2WOzMZKCHZLK6xxAKsgaVmxgV3s+S3qCPE4F6On3N8rueoF3vUk9TgIdXIu13lOcyx1B8JlpKARgNhAGw29c+T/vG7JaTczEGW9W5vZD0Ja5uZGyeoLbVGSDggDpg18k/L/5vB5We1On2wVbbRfRmiWyqQQsOn6ZaqOgGMs7uR13MSclhnOjmtIhyGU5OBjPvPcH/n02yBnaZ5+H3z/uPj6j660wZkBI8XH/ANTj8akzq9xZPhpGPUb79x8OmwOM77imT7Prx9cfiAfx4p36H/5f/kj+9fKdRzF55Uk7+oHX0/8AnUdMUz/z95/rjk8iuKyliAAAd3OQcbc4GOepHP3zOM3Oc6PMCAcbKxsAOu+ep2G3XqKrV+pv2mSvqrI3O+4BJ3xkAb9T+lKVOOwJCNwnmHflwfwBG537nA3/AL0pVPcZzkEFJ77dMkHHTYEjf+2D2UqmyLchzJT5VHunYYOdiAQcdTnvSuLKrDDDI9nP36qoUi3OpJPmI9RvjbOSD6D0/wAUqw8JGSvPrAx7BnqTgc/8Vb8ht9kEh0jHqobEjI7/AIj3dyO6rODnA4YZ9nGDj18cEirG1DrNdhiviRIWW3WXmlciioYebU2cjJ2wrPTGBtsatyLuikQZO+ORBzzlkZepBzgnPy6V2bWZoLu3mZ9vcXNtKQcAYimSVuQM8BOmeentry/8ctRQLVxg1fFadaRGuM2bbX3meR1xhqS4UyUqbb5VshKWwE4yFoU4B5yUjwN2ms3j7Q6iu3YHaeFsDDpG7gOSFUMoDDGGByucDIAH6PvJg63fYHs27nvXtrWxvoEcusUzRxJLA4ckpIWDAjxNhwmTtO440ReH7TMSpE5qRDbcSWXrfMU7FkpWjJSptRIZ5lLHlQlJKkpUrJUsGMSWlxA45JRMqCsjGInA3NGVBAwMZAwcgnqeNlJBZanbEKgW4mQ747qMJcweIogDgB2yAQCxYBcgHZispcOtQpnaqiBbD0lMpDbTYdQVNIeW99I9IcK1trTHSfFcCUh3CAQlJUM5fSbV5rgFgVG3lpHOd2Q/KuOpwCBnJOAxAxUE7aaelpocscciiVJSWEB8bROoTZGoVWXcw24dtqKTksRtr0ccKnozWidIW5iUlKYWn7WytsqCfCWY6XVtlAwkKCnFZSPqqyMkjJ959nLYWegaLbbSvdabaDBGCC8YkORgYJLkYKggghvFmvzyeVG9GqeUftzfLIson7T6sQytvUpBctbKyyZIkUCDarDgqBgnFZ1t8IPBPIoO7pJAOd8kntjbocnI6b4rNVBACxwBk9auuNaSCMgIGD05SoA4JAxtk+/bOd/Wn2D667CwDOW5x04I9vrB9f8A31qusQmmgDygnOylAE467DoM98fiPWq1eAA6VUm4riz5GlHIGDjYfHGPh29AKVWqg3bHVf1FJR7vrH4Y2P8AcfrSlV2lKlnnIwH0vIob+hA9cnpnbp12zSlWvOn25vmDYUF7kcigcf8AqrPbO22AKVQso6kD5kD+9WdcLjIXzezqSQclIWnlOc9iMjO22cDv+D6ffT1/1+lWHmxgJ6iM8Dp8OfV/tVi3JN0khYU0o5JGUKycYzsUHPv9dsHpmlWdxySPXnr7D/v8fUaxjftMSprS0HxPPkFDqSrr1wrOR6ZOT1270+/vFcGG4EHnIIOeevrri18pX+H5xq1dxD1Hrnh/ftKS7dfJKZyrRdHbpaLo3IA8zfOxbZ9ucSFY5X0ux1u/WdYCslWie1fkt1bV9XudTtLvS50ncsIrs3NrcKHJOxpYoZoZghO0O7JlQCwD5NfTTyJ/43OwfYnsVonZTtT2Z7V2d3pFvb2cl9ovo/WtNuFggWFZ47S8vLG9tRKI1eS0VZ4Y3LiOQoUFavx/kI/KZRISxddOwGW0NrBkW/UkKZ4qwpBbQtmSzEUgqxzKkefwwMJZUoioZP5Iu1zM6La6WyE5BTVYgoIHCqZIlIGSP5QePXnIG/7b/Hr5B0dJzqPa5WUKojn7HXcRCE+Nla3nuYndVACIroCxwGABxtnwY+RbxRtsmAbxDgWz2QtFDrkuRdpKSHUvOONtxoceKt04KAt6WnA5CtS0p5RltB8j3aGK4Euq3GkWiB0f+DPPqE21CnARI4Y8kKF8TqMjd0JFa08ov+PTyaXdhcWXZLQ+2Gt3EySsvnmn2XZ+y3sjKgmuLq9vb8w95td0jsWdwG2iFvEeuOh+G1xsrba3nH1KCQAH3OYIJGfqjKe+dhjpgdMekVXaqrk4VVUZ64UBQT15IAzg4znFfJyVzLJLO2O8mnmmcAnAMrtIQoOfCGYgc524ByRWb4MS4xQhJfIAx5U82QMAAYykb9cbY6GuVW6vG33B5gpDocd6AhSsHrnYJwD2OPdv1qn9Pmfvr05+Htq8ku1QvOB8jnknGSfxPX51eUK/xk8oXHSgjIKij7R6EE57H4/Cn39/L1/TkYq8sqs23pwCCcYOTjHz+FXVHuMV8ZQsD0HX4bd/cM71WrlTyVJUMpIOwOx7EAj/AIIPxpSrXcnPqIxkbEb5JPqPwO3wGOlKVIuB50FKlqwQNwcbY6YIA9c0pUkq2tqOTnO/Ujrt7+mNjSqFVbqAfmKhG1oHXYe7BO3r5SAD65zTGf8Asj+1ce6jPVAf6V8i1skd1HfONx0x7z1x/jtT7++Tn51xEKjOMdfWBx8PlUVGnmXcAxHHcjPmBCdt8jOARvseo7dTSq90vs+g/SptGj4bn9S3wkjofEbC1Eb4IGSAd/8AcCP7AP7ff/P31r3ac+Bfljr06/hzxz+OZhOh7RjdvlI3AaCUoB/BSVHA92D78DFUx9/SqGJC2dq4xjGBj5/PHGfZQ6PhN/0o8Re31nGsK9cZGcb+mBVelcgiDoqjjHAx9n49ak16aQgkqh+XfAaOEADO+Aonp2wOoGKff2c/f9+HdLuJ6AgDAAxx6+nJqUNnZbOChaQR9oKBz8R+HvNKd0ufVj5D7+lBa2vslR6bHGOgG5wcb5O3uHalBCgJJAPsyOntxj2+v21EFsR3znbO4/6cdum/WlchGgIIUZHI+B9tTLUUsEFsqGAe/UHcjqT/AG9aVzqeRJkN/a2G4yDtv6+vv6jJFKVVBa3O60j45/xSlfabSOqncf8AikE9ckZJH+d9/wAVKjJtjAPmUtXuB5f8mlKjIgRUZw0DnfzEq/U0pUwllpAwltCR7kpH+N6UqJSlKUpSlKUpSlfhSlX1kg/iAf1pSpdUOMvJUyjfrgcvXvgEDPwpSoJtkY7ALGSBsroCRnAOBnHTJA9dqf8AH4ev6dKHoeh49eSP64ycfIZ9lajSOPepbHJ1hC1Fwe1pMfsl+vECyO6Sts+TbrnaIa1NWy6S5t45HX03FTkOQ67ZoDjUaC5cHG4sp60uolR461cRNcrPpl03czSJGbZGdGiQhUlZ5TuYSEqS0UZCoXYKTEd+94vI/oeqQ6BcaP5ROz9tDqGl2F3qaa/dWsd5a31wFkvbG2ttNMkUTWapcwpHqN2kk90lpHJNbpfK8F/cM+MOnOJUSxqgWvU9un3qReYSY8nT90dgQpenkPN3RN1vDcQQLMo3GFdLXChXN1m4PTbeuM6y1IeYbX3LHVYb1U2xzoztIm0xSMqNCCJBJKF2xHeskaLLtdnQqcEqDEu2fkw1rsZNqYudQ0W8tNNi06572LVbGK8urfVnRrF7DTnuDd6kos7ixvbm4so5LaK2vEnSSSGOSQf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEEAwEBAAAAAAAAAAAAAAUDBAcIAgYJCgH/xAA8EAABAwMCBAMEBwcEAwAAAAABAgMEAAURBiEHEjFBE1FhCBgicRYyVYGRldYJFBUjQqGxM0NSwWJygv/EAB0BAQAABwEBAAAAAAAAAAAAAAABAwQFBgcICQL/xAA4EQACAQMCBAQCCQMEAwAAAAABAgMABBEFEgYTITEHFCJSFUEyUWGRk6HR09QjgbEIJHHxQsHw/9oADAMBAAIRAxEAPwD6AK1vWcUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSrqFCl3GU1Cgx3ZUt8qSxGZTzvPLShThbZbHxOOqSghtpAU46vDbaVuKSkiQASSAFVmYk4AVQWYknoAFBJP1CoEhRknAyB/ckAdvtIrNMT2e+IUmzG8KYtrAchRJcSC9PQ3LecmNtyGor5cSiLCfTFWpxaZMhBQ8ExnORZdUxByIrd7mZ4I4V5a8zzEJUPIUOyQlxyiqPuO/BOAFBDA1JW5jeZYIxK0hL+nlSA7U3guvpO9Sy4BXp3JIwRWHbnabpZZS4N3t8y2y2yeaPNjux3MdlpS4lPO2rqhxHM2tJCkKUkgkCCFYdVZQyt8mU9mU9mU/IjII6jpU4MrZwynBwcEEqcZwwByrDPVTgjsRmo6o1GlKUpSlKUpSlKUpSlKUpSlKUpSsy8IuFSOI8ya5NujUC125JS+1EmW83p59aQprwoMhxTzMMAnmnOxVsOvJERgreLimJFxI8UZdFVvVtOZIwwwhkLbHdCVKqVVs9ZCq4PWpbyqjbSHyRuzsfl4LBQN6qw3ZycYwACSRW42iuGVi4fQwza4i7lOKy6u+yokVU9TklhCFstvtRkuMxUI8RDEUeIU+M844XipBGNX815PIpWCZlVEZTHHKY9zhCyup3btoOxFMQYsxmMbFYykxGVlY70U5ZSpKFlC5wUOR1JCuzbtowq7g26shIdcZWG3GTbnm30oUorRIadcJUfDW2tjDYWlA8QhRbWvKfEKN6oUvJ1kCyWq6Y0UiRsx5dzDcSbi210MBEfNEce6SP0Pja0rLmSjQxEF1lN0roXXBMRiTaoDqeYGcRkkhCCAGLKpJKi3ulitOrI82Fe7LGlRblAftrzjMdMdYwy2UrD4j80dTKkuLjFpS1sSD4jP83K13W0v7yZgj2kbZWXlG2hlgCzRxQyb5/wCjsRZBFOAqcw5YKqMSGqmeBIuqzuCpjfEsiybkMsinaOZ6iCyAlthIUN0GVGjfEf2ftQ6Dts/UCblbJlkYmqQw29KRDuQhOBamVOolBiPIlpKC0qLCdekPDkeYZIWtpm/QPO65mt5LchC5MrRhWAJH9M7gXJAyAFDEddtRW5idwiksSVUMoLAsQPpbQdg69WPoU9N2CCdfqn1UUpSlKUpSlKUpSlKUpSlKUpSsscHroq16iuSw74aZFhktEFRCVKbn22QnYHBUEsrSkkHAWodCqtdeKV09nwjd3EbhHS4thu+YRpMOF+slemCCOu7HpyLzoFuLrU4IWjMisHJABOCFIBIAPQE7jnp0xgkitoLfrJ8l0MyVoSjA5g5jlIHMNuYkJQOvY4JCUZrmLSuPNRgmmMVxcW9tGi/7ouViVlVierHYiRpgkbtpYEhUXAOeXnDkO1FeGMyN2jVQSykkAFdpYMwbr/5eoHLbalfpXL5XHGZinHFqBc8RRdSok45t1fAoD6i0p26EGr1d+It0ttNNZ6kZZcAyF3MqSk9ckPuVJMMAHjUbdoBUlNtUS8Ow71RoCAFxFtVVIBJIXO3JXOchsHPUHrmpWHqKclKVqe+BZSSt1SlBJJHOQCspSkEnIynP+fmy49vo0Wa41CQK8oHOuDuG8tGJNqu5WOPLk53AFt+MhlBp5tDgyQsILoCAiLg7V34JbljBxlfonKgdT1JxN7Rt2W/o/T8QveIiTqFUtACypJRDt0xlKt+m05JAyQCsgHbbe3h3qs2qSXsj3XmYggaJg7umx2HLYFshdyAEBSQCGAJ2k1iOo2wt3UbCjYwxZVBY/MZA+TA+rJLBR2BxWm1bUq20pSlKUpSlKUpSlKUpSlKUpSuzaQeUzfWFICStUa4oRzkhAWbfJKSrBAIBAOFZGcHqARrbxbgln4B14woHlhgimjBAYBxcQorbT7DJzCQQQEIDDNZPwcyDiLTlkkaJJJGR3U4O3aZCuR23cvaD1wxU9O4kTqC8Qjck2cJYkoXJClSC2oOOMsxY8dxSnG1uqZfix0uOfzXEl+Qt1aA6kKrgKfU3Nu9qlzI3KZ1u45OdEsm1AXZUP9MQJJIH3N0ZSqoG3YHSacNxytDPNtMc8W+1aIIzRuzORHIRtcy4TbjZ0KneM4IvvpXelpU62+sNxnC82pT7KVJaW0tpSVD4UuSUtyJKCVKMdLiIag4lKpD7Nnt7xitzbxKV3qFZtkyxSOi7nGGPpjbYGEWSzAtn1sBX1Jw9HEyTTKWCMSMkNIFP0d2BuLLkrnAGACCy9RlzSF0u02HGRPdaK3ERnZbDzoU6RyqfkIYS2pJ+BJSEAp5lcqspwkKVedAt1vJrqK8ug8O5C1uwc7PLqJAseU+Y9ZbtKV3YAGTiut25t+W9raKvp2rNgAAyErlmP0SCcEZO3IyTnFQHHS4pkI0lEaKwhMW4TShQISBIVEaawD0WAy4FpJKk5SCAevZXgYEmsdWuog3lnTTPLlgACz/EGlKAZI6ctWJZgWBUKu3LaZ4rjaG4ijbaWD3CswOWbaYcZJ6lQSSp7HJOT1xr7W+6xOlKUpSlKUpSlKUpSlKUpSlKVJWbkN1gJcUtDbklplxTaihXhvK8Jwcw3CVIWpKx3QVJPWsd4tgFzw1rcLLuV9PnLg+xF3u3Y/RRSwIBIIyATirxw/KYNa02UfSS6TbnqC7ZVAQAc7nKjbghs4IIODrF7ZftX2L2VuFdy1uuxnVmrJtwa09ojR6Z6LadQ6gmRpUpk3G5+BMVabFaolvl3C9XYRJX7vGYEdppyZLitL4P0Hgl+Mte+Gwzx6dawu93qd8YecYrMvFDzLeNSonuXnWO3itxIqs8hDZQFh1Ld6ydC0vzskLXMjsIbK1V+Uj3RUvteTDrHCsYMsjlW2KnRdxUN47XX2/PapgcdoHCnUHF3hnpfVs+7oRadJaM0dp+/wCmb/bZ8LTdwgiPO1HdW27c5AtlzvNwmybxxTi2/UL1ndsNpuVqvqJkaDtmPwz4QTheTVLTRdVurCK333N9fXc9ve2txF5uKXmJaQFp+ZJBFEqwaM0tr5kXE8MluY9+OvxTrLa0mlXF/p8d5NIyQW1tawz29xEeQ6bHnfERiV5ZG5uoIk4jEMMwmWQJ7O+wd7W07j3e5Gg+J0OwWLixYNOxNWgaPlhzTesNPSP4fb519sUR273yZY1WC9XONarxZn75fgyJlvLV4duKL7ZtN6x1Hw/Th+7t9S0u8vrrRbq/ubQJcjl3unXMkcnloZZfL2kdxC1us0sc0drbsYkVTbiAQXF1MvuIJLmxlsbu0tY9QW3ikeSNy1tPEGBkZYC0jxSLKUV42lmUEswlEolhh3X40yku6ngRULK0QrJEQoHGz7r0lbhz1wpsMnBJAxkbqVXVvg9bpDw5eFCMDU/LYGNq+UsLFGC4HRea0hxkkSGTOCSK0FxMxa/TIwDAXXvkq88xDHt1IwO2cAdxg1h+ttVjtKUpSlKUpSlbRe6VxH+2tE/mV9/TdXT4Pd++1/Em/jVReei9kv3R/uU90riP9taJ/Mr7+m6fB7v32v4k38annovZL90f7lPdK4j/AG1on8yvv6bp8Hu/fa/iTfxqeei9kv3R/uU90riP9taJ/Mr7+m6fB7v32v4k38annovZL90f7lPdK4j/AG1on8yvv6bp8Hu/fa/iTfxqeei9kv3R/uVxX7K3Ea3oXPN30Y6IKVTC01cb54jgjAvFtvm04lPOsI5Ucykp5iMkDeqLUdCuZ9Pv4He3KzWV1EwV5Wba8EisQrW4U4BJwSB07iqqx1OKC9s5tsi8q6t5MnaANkyN1KuT8vkDntg9q8M/2kOgoV5m8M9SXSTNasSrxrLh9IMC0apvkiJqDWWl57+kn24GipMHUocnXeyfR2LJtsxlSJ98hRJCJrE1y3yOHeEonstW4kW3ZOfD5KURSyWsP+10/Ui9yvNvI2t9irdc9kkiOY7d5Y3ikjWResr24judJ0q2uI3KvJdbJI1uJCHvbFI4nC27rPvD2qwo6N1ecRuj8zaflW1hY3dM63mzrC9xB1bG4NyrS7D1sm53aK7ZI8+/KvkJm9XK3TrirSL0DUN7lRYs3Td0tjd0ugeusRm33a4SJCOo9O1CO8s7Zby00u1+MLN5nS3Abz7RRCFjbxHkpdLcWcEe9J4WMFuERjJHCErUV9YNb3MktvdXtw+mmMwagJm32iyPzk5hBlMDxXMsjc2GZTNMWdVhZ9y/RN+yQsU+DxG4dzvpJqTVrdh0RqKfPvk26319AtN4u1wt1utF8tN7bdiWq5OT9WQNRWCBpu5z7W1Al3SRd3nL3LXIk89+JeqKkF5y7SPT3udVsrQQR28QMU6wRma5t57MDmRpFaSWkst9HC0k4t4LdREEhTO9O0xpbeFFu3uxFZXNyLiWZ2LxxmVxHLFcEhN2eYiW7TJGJJJJuZI7yt9MFy9nzW+vpbmqbVd9MtW645EVu6TLqxMQiKpUVaXG4tlmMhAeZcDRTIWVtBC1BClFCehfCPh+eHgTSZopYmF9LqN6xneRZMzahcqu7bC4P9ONArZOUCn0g7F0PxTqMbazPGYmU28VtARHtKlkgjZ29TKcu7sxGBgkrj05aw90riP9taJ/Mr7+m62X8Hu/fa/iTfxqx3z0Xsl+6P8Acp7pXEf7a0T+ZX39N0+D3fvtfxJv41PPReyX7o/3Ke6VxH+2tE/mV9/TdPg9377X8Sb+NTz0Xsl+6P8Acp7pXEf7a0T+ZX39N0+D3fvtfxJv41PPReyX7o/3Ke6VxH+2tE/mV9/TdPg9377X8Sb+NTz0Xsl+6P8Acrff+KJHUDGOpBG+O/xAfMAD0rJKtlck3Vj+sgE/djr88528sb9elKVyN1ig4K0jp/V5/wDz270pVRNyiKxh1OT6j79yRnFKVcJksLxyuJOcd+mfM9B677UpVRQQ4lSCQpKklKgCDlKgQQevUZoQCCCMg9CD2I+o0/76HBBHUEEdutfNvx4mWDVVw15we1hbWLlZbpc5dtkofefjOtqg3JuVDuEGVF5pUG72iZGi3OzXKGpuZb7lBjToqkvxm1J8tONeJp+DeLeI7i0kxc6Zqtyu0hFjkQ3DRSQOpOx0ZC8Lo6ESJujfAfr6K8JcIWvEPDOlXdxue3utNglKwgN6pIA0ZRtyBGWVQ/RwySbXUqyqa8sIXsFcVrTry2XPRWvuH07SNshG225OstKoiyP3BUe2WZ1+9adtFum6W1Rf06ciT2ZeoS3p6dfL69Z7zeW5UTTdqsTd0h8f+HdSs7i1k0XWFvwRLLLaXaNatJG00myK7lliu7KDnyxyR2ym9S3to57W1AmupLiqK58Ib+0uYpbfWbKa2BCGOW1ZZ4VdVjJkt4o3triVoo2BnxA0lw0c0oMUMcA9UfZH0Ro72ZtGTrPbFp1ZqefF09F1Xq96BEtMm9I0haUWeyRIcKOJKIFlsMRh02uHImXKfzyZL9wu1yuEqRNdwy/8UJuJbprxLQwWkU04t7JZmueQZpvMXU5meGPnFp0MjyJFbRkLBBDFGqIrT5PC9bOKG2W8k5kkSLJcmIwiRRHyIY+UkhKAxbYQHmmI3PI8km9iPf8A4VzQOGui5M4tx5E3T1vuTrPNgtKubQuIbPNglaEyQF5wSoKJGdq9NvDmHkcB8IpgDmaBptyQDkA3dsl0cHAyMzd/n3ye54V4xWNOK+IYom3RW+r31qjYA3LazvbhgBkYblZGCQQQQcYruTl8tzf++hXmAoenzH9wfSs0rGN6gkZ6jGeh+fUfKrRWpYIPwqCvTqfxCv8AoD1ON1N6/X+R/Sqf0kYJACTv2wT548j3/sOm+VRBB7GqybyVDISceWEgjPoRn0pUa/f4m6o7JIGOpOO//jgZ/E4G5pSuT1udTko+NPTHU79emDgDbcHywc0pUatkpJ5kKQeu4IHkO2CM7bbZ8qUqwfhJcGxPTcgnOcbd8HO+d85J9RSoEBgQRkH/AL+VQsiHJbPwLUcYAIz133xtv6eY7YNKktG46qc/ZgD8yainZFxY/wBN1eR2yrvgjG4B2yMb9gNtqVJ3MCDnBHboOmR93ao6TrWfaG1OvyOVpIJUVkKGB0ODn0743PypX0JXz1OfswB/6rwQ9oe6whx11vMjLZWV3uTLaQr4T4d1DEtC2Vb4z4qUqxvyrJGSkivHf/ULYy2vilxhaMkggl1a5uo+WoKEzBZiXVgM7kZZBtxg4DAEAH1M8Fme+8N+FpFUtv0q2BkiIKlreMxlGyScDBIJyN0eAetY8h6wlr8CG6/Ijc7gbZYT4iiGHAhKXELV4aVcziV/ACrdWSoBSQrRrwy2oZoXDqodm2s6RrIGUtuVdwX0gdSACwIwSDW5Bp6JG7oY5AkW95CQFEgJJT6LEDaejMVGAOhJNdptFwfhyp8RiYp5cgMMIV4mSr95B8X4QlBQtYWkLQQSgZRzKSnAzHgwzT3C25BXzbRRN9J/TI4VlySwO8NtJGCSQD3JFl1JIfLJcvGBy1eYZjAK8rJT1EkMBtLLk4YqpOCcV7m6amz1Wq0QEyeZuFbIMMFK/qiPFaYSnIURgBAwBjpjGNq9uNItFsNJ0uwRQqWOnWNmqjICra2sUAAyAegjx2H/AAO1eOurXJvdU1O8yGF1qF5dZGMYubmSYdic/T69T1rv0SG+6AStxWQDso5OTnfcH8CCQe29XGqBVLHCjP8AcD/NdjjWtZwVfDjbB3Vn/vrgehOdiMKnrCB1br9nb6/mDU4xAbbxtk5G5GSeg6bj5BOdj0JGaVOChSSBjOM9T8u3epJqI4ojkZUdjg4x0OSdxjGfLGT03pUakGrY4rBdIQNjyjc4Ocg/djuMbj1pSpylK4rCCMLCSDkfFjG/bfzpSomULe2CtRCFdfhPKM9CCOu465BGT13IpSupz7hHbChHWHDuBzpOfIglOR32JAGcZwDur5Z1U4Y4/sT/AIFdEuc6e5zpQxt5tgE9/wDjk799umOx3VTSOHIwMYz1z3zj7BjtWLb/AG25T23UKU4EqCh4bgUUkHyIAx02JSfntilS8k5698Z/t2rx29qf2dOOMjiVJ1joPRR1TpydAjh82i6QmrnCmMw/3VapNsuEyM9IHM20WjbW5AUgJLvhqKscPePvgjxjxPxZdcS8M6ImqWl5DYtcC1urJbwTW0KRTCS2vbiCVzKYywNoJ1YMGdFlJLdzeAPjdwVw1whZcNcUa02l3thNcJE17ZXctnLbS3RmiWK7s7W5SIJE7K/nDFtZfQWUZrAendA8emZBZuPC3UDKw0UIeuMF5jwlBPInw3m23FJUkJSloAFKCEknkBUOWNY8AfFG4l223AXEqFZAzrHZBkkw7EjLXO0qfUX6nJO7opzXQl143eEIt42XjrSFLOhaKGSWZ2VizsGjKDvuZ3YDJy24FiFOeuFnAvindL3FkXjRsuNGXMguzHXXW4mI6HkLfylK3H5Ki0lWE+EQTgFYJ5htPw0/08+JUWt6TcarwudM0+2vbae7fWLvT4rc28csLyReXgu7jUPVGGXENupLAB2QspGsvET/AFA+Ho0O/ttB4ha/1B7O5gs0sLS+kKzSQyRxOtxLBFaxRpIyk75SR6mRH2la9ZtD6U1DaozQmyZL6gAQH1hKU7DJKQcE7DqnudjvXprXnECQcis225+6RkpC14SOyUlX34ISOhznoe2+RSoq7LnacZ79Ae3/ACD9dd5gXZlPKJKFrPc/VTtsfqjbYbntvntSqlZlP0vT9nU/4FdwhXK2rwEJQlR2OdznsPiJyc98px0ApU0EHqKnEONrA5VDG2Og+QHY+W2aUqpSlQ7tyI2QPPcADt3yVH1BGDj1pSo1yXIX0JSO5zkn785/EkYpSo56MuQSVlRxjA5j36+YG+/b03G6lWqrW2epJ7YyDjz6pHyx386V8hFHQD8z+tUza2icYOCMfV39AB/fr26Ur55Uft/Nv1qonT7b2MRnHBjbmHKMeeSMY7eW/XzU5Uft/Nv1q4ToyC7guwIgG/8AqpCz0PVIB+7cHIHbelREaDsPzP61WToKx/1R20nyaabSnrnotK8Z8hj59goYkJyV/M/rX6NF25nJYjxScADmaCV4B7KGQM98AdBg5pUOVH7fzb9at3dMIbyUxevUtryB6kZycdcbY3zgYpTlR+382/WrVVnbR1bcSQOikkDfYDcDY9M7ilOVH7fzb9aC1tHBIOds9Bjz3wc4+6lREaDsPzP61VTbUpIUnm67nmOw+4AeRP3jyNK+gAOwqQaXIZCQlROOxORjt37DYDYeYpUakWrg8nAUDsPPI677Hbz7D+wIUq8NsGMBePLc7eZxjG+cHt5AUpX6m1p/rdUd84GMH8ceuf8ANKVUTbI4zzc6vIZxj8N/lv8APNKVXTCjJ/2kn/23/t0+W22TSlV0tNo+qhCfkkZ8+vXbt5UpXOlKUpSlKUpSlK/CAeoB+Yz/AJpSqKo0dRyWUE9c8oG/ntjHrjrSlUF2+OQopb+LBKQFlAz2BISrAzgZ5V4GSEk7F/x/9/mojGRnIGRkgAkD54BKgnHYFgCehI71pqnjZxZtFjvi73wP1ter80q4zLI7prRmrYdkRBehQ5tghXBuWzd7zMnNIlssX+RCiRlM3F123xLWUWbUM6140NY1KOKXm6TdSyjmPCYLW5WIIUV4Vk3LJK7qGCzsiKBISiJtineHoVvCrw+1DUtNXTPE7h3TNMcWlvqSaxxHoFxqTXUdzcW2p3Fm8Elhp1vaytA82kxXU8/Ms0S7ubtW1DSLTUMwcNOKNr4mQbDOt2mddWxN6jXd51676VvcK02mTZrpPtUm2zr3Mgw4SpypFvdLSYvjNKPKyp1L/wDLq52OppfJCyW93HzVlJMtvKkcbRSNG0bSsioXJRsbcjptzu6VrzjLw7veDLrVLe713hi++GzWEaR2Gu6bc6hfQ6jZWt9BeW2mW91cXS2oiu497zCNxhnCGMFh/9k=</t>
+  </si>
+  <si>
+    <t>Sữa tươi trân châu Baby kem cafe</t>
+  </si>
+  <si>
+    <t>Choco ngũ cốc kem cafe</t>
+  </si>
+  <si>
+    <t>Trà sữa kim cương đen Okinawa</t>
+  </si>
+  <si>
+    <t>Trà sữa ba anh em</t>
+  </si>
+  <si>
+    <t>Trà sữa truyền thống</t>
+  </si>
+  <si>
+    <t>Trà sữa trân châu hoàng gia</t>
+  </si>
+  <si>
+    <t>Sữa tươi trân châu đường hổ</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAAGAwEAAAAAAAAAAAAAAAIEBQYHCAEDCQr/xAA+EAABBAIBAwEFBQYEBAcAAAABAgMEBQYRAAchMRIIEyJBURQVGGGRMlNxlaHUCYGxwRYjM0IXUmJygpLR/8QAHAEBAAIDAQEBAAAAAAAAAAAAAAUGAQQHAggD/8QAOxEAAgEDAwEEBgkDAwUAAAAAAQIDAAQRBRIhMQYTIkEUFTJRYXEHUlOBkZOisdEjQqEkYvAWcpLh8f/aAAwDAQACEQMRAD8A+gjnL66hTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOKU4pTilOe+7c4wjHPPCk/HnA4+GevlSuNj6j9eY2OBkowHnkYP8A4nDeY8qxuU9CD8jn9s1FonuAdDydHQ/z1r/LfPJIHUgfMgfuabhkjIJHUDk/gOah2D4I/XmVVmOFUscE4GM4HU8kfzQsB1z+B/iueZKOoyyMo+I456c9OfnQEEZHT4gj98U55rNOKU4pTilOKU4pTilOKU4pVfxmtrLa4jQbezFTDdS8ftJSk+8fS2THiJcXtmOqU7poSH/+Szv1L12IzO5gs5Z47c3MyRSMkW/ZvZQxGWJwoGMknoBmvJ6qMlQzBWZQCVBz4tp9rBx4RyfLoayA/VU9M4uM7WPQkIVsWL9Wu8W8fCfdSFtSK4AnuFtMkga7qO9cTve3uqytNbXbz6cqgFlgiYKAm4jEyq3ejAGWVztPOOcG0xaIjbRG0VwzAcmQDB4yCu4FS2ejADIxwBxNoyeiht+7jSHCpLei87Glb2kk79xFahNoI9PqCRHIA7EnR5Ct2yUowOpuxPSWWeYsOgxgKpIzwMY6/jtroTjn0Yh/JYxDg8Y9rO0E8g8+XHUZs6RmcZm3XYOZL7lkMobVWLfmt1i0hJPrchqrpD7a1f8AULrcpClk+lXwelsR47VRrM0japuVz4g0s2wqcHwja+G4AznGMj4VtDRWKKPRQjgZZii7z7wXRSCenQ7fwqKX1l6YwvUqwkVEhzsSGo76lnsCo7W3FToEhWypRB7lPckzFv22gU7o7mWSQMuwRtO59+SMjw59o46YHOedP1HdHI2EA8EkQqBnjqSDj4gH8atyT1d6OW6FJiNQC+4sthqKzPEsOAFYJXXx3oLaD8RMmRNQlAT/AMxCykJ5ZbXtffSRGRJXIj8fdyK7Bxu9kB4wCWzgZcYPK/VqPudIdNwICcEiUFWHh9oHa2CeMezn3lck1LT0VgMZ2rmmZHkxWpKh6VERXXSomKHylCZYQ2G1iS0j3SveFCFue7Li+oWU8l1Y29xNB6PLLhmXnGGQNgZY9DzggHH+a8VdZJATlAxC8YPBPUYGOPIk8+fGTIc2KzTilOKU4pTilOKU4pTilRIPpWhXj0rQr6/sqCvH+XB5jmiYFkljdWGc+HaSygf78bfkxGDnFYzho2xnbIhx8j8j0HwrO9jAiyGEOo98wp9hpe2XHWP+o2FK17tSNbBGld+w+HsSefI2qtNbX08UUzoqSyJsySB3cjqgKkkAhcZBHOQSOldSt9k0EchVAeccKSRxjDAA9Bj4eWKwvlUCyaadTEv7yMkBW0s2Ugd9EkEAqWo77Akk+fGzvRW8lQ722SEcAvFEeDxj2OgzkDpkV+7BShQAqDjIVmC8EH2Q2MnHJzzx7q1LztzJ2VPKaye4JUCFFUn3hV6fhBJcaIJABJBUfSdntpO5OKZnK747faxxkW8akZ6ktjDdcEYHlzxXnBCqqs42jyd/LOMDcPjjJ4PT4an5PLydLrnvMluXNKV2LiElJI9Pq9bbOwo6A9SddgD6gNkS0UskXiR1I/2xwrkLwVDKmcEcHB+NR8+3eVYMxUcEyNxnHUEnIOAcE4PyqudPqyda2UY2E2ZYFS2kpM6XIkBBcWltHoS84tIVpXhtA2R3+nJYtMyIglYCUxZAH1mUYABGWGfCcZzjbg4rTmAEZwBxzjA+/wCWfM16aNtpababTsJaaQ0kH6NpSgb/ADATrx+nPoeNv9PBEAQI441GTk+GMLk5A5wPjVD24d23ZDMxA92WJ65Oaj5mvVOKU4pTilOKU4pTilOKVwRsEfUEfrz9I1DNtOcEHOOvGD5g/tTzB8wcj5/Gs/Vj0e0oYEhl5DhajiK4rZBRJiJSzJYWewCm1J9Ozsf+Uk758sdsdOltNf1KJQNvpc8qsed8cjKyEHIycZBzznngcHoOnXcTWlsqujEIEbg5DEjr04IPUZyRn4VYGRQkOpdQpQDqW1r9C3QHDpJIKUklzSknf7IVs9h33yqom5trJJtyQxVHI45xuCleoHT31LBlJADKSeniH81qHnkNxQkLSN+n1qATv9lPn4dfCEpI3sgEAAH4SBKRnaqkBiNvIKtn7xjIPHmP3FZyOhK88csAD95ODWpN/C+1yi22Eq+EFQ77IAKldtHat+fOgO51yctYC8MYKnByDhgDgsASPMHHGf8AHvinZnMkrbeOXwVAAUHBC7snC88Z46DnFZF6T07a7ivYUgrQqbFC1JOkNKQ82sFS0AJI+D0DylRB1rsU2TToGk1DTojGWD3duqqBniORSckZAK4JyQPka0bi4VbeZ0dMd0wyeuCMHhiD5jnHnkZ898D5Py2SdfTZJ1zvb4DtjpubHyycf4qlDoM/45H3VxzzSnFKcUpxSnFKcUpxSnFKc9o2xs89COPj86Vs70yiok0lA0/WF2uvU2UL7Wyr3pYuKVPvHS+hhBMVqdBbUAt4oCpkJxYWtUts85Z2y0i2v724un8Nxbdy4RAMSQOoZgw8+7684A3NyQa39Nu5LZgEP9JxIdmTw0eeQOOTnOM/H351h9pDppa4Hj2c9R4GUysW9U5UWrsrixqVVMeY/HqqvHmp9haraNZHuJ7lklajKZjolyIxeU02gka+nabpt8sNpJCjr3CtMqExq7ZbG3blg+4IR4RnGPIZ8vf3iTBiSCzkqc8BT5dAAMAjzHPBA5GpGVdVvZ1pqilqLb2mOk1hlFbW1ci5kRupeIz0T7MVEz7xds36ufNqlqRdtSksxoUoVi49WkJLxMv0+I+y9tJcn0TTZsszRmMl1xzjgsMkEjkHByQR76/Ua3cCIRzzoQrnapwNuQxALAZJAOcHjk8+RwN/w3a9RJWJdSOned1uWdOJkiemW7h9rjEuHOQ8xNbZjz5CHX/dipklhLkWtDls9LbaeklEJLqX5M6BpFrD6M8M1tdbgQWSQFAfaUoygHLEEOOFHUcmtddTvppe8DqYsY2Zbjd1yoGMYH1j8zWbOkOHZFSdTaZuxW9c07eFZRZy7pMd6HCatYt3UQ8fiKYTuI5YLhS57zzp9Li1MKW0htvaRLaBp9pbzrKhBeK5RgGGWK4JbGRxwQVGR165r8Z7l5ZDG5bDKoZc4Qrt93DcgDPT4eeNxeXNvab5n96/IAAADgAAAfAdKcxWacUpxSnFKcUpxSnFKcUpxStnenOUpxjpJbZBJfdarsYyyI/b+7SXD91TZdWzLUpAG/dt/eHv3z39LTbjugEEmqazarJqyRzYCXGngpzh8qHPsnHmqEA8MGJPA58qxESFGAZJHLKMEkFuCcHKgY6nyGelfNx7aPtT4b1f9r24yD2oOoWQYv7I/RrOuouGYVhNFkmLv08yyw2VKweFmbODR2cv/wDEfJs0tkZfdync5xyG9gtRicSkoaibJsXH+RhstQGmvY6FBbSaxcRQv3kkM2WU5aUTP/TESDMaRNEzlssWUZBPhrmL0kNdOWiWMjep2kOQyxqDkjLFhx1A3EA+fillntE9J0deMQwKNMgO9E6rLqaukdUXnq7LcprMTlZZY5LG9xazrYUD1TErci+6cqrZsKGxRPffsKQq4hxCuTbYtE1I6TLdLI6au1oWa1DPHazTC3WDu2YoJY2RgWRlmDu2AXG6o430Iu0j2KY0I7zvUMhCq6twrbQZCcDk5K5OBWfcX60Yn0yyub1X9nLM8ejyKnN7R/P8Upb6qgr6oYs9kUuwlvK6c4RXWtFExyxxCFBi1k+U4u4xzMpSZdBNi1Dts0IKO01d2it9Wtp5UmgjFvKVd1gZVKsjTTSd4ZEdlI2hhg5cZxnbllh2Ge0kRQgYsME94pyxjULwAQCrHGV3Y619ReE3LthezIVY4FY4xiFVc+pTSSZcnI7VbtOpLpPqaLFTWSn3WQB6vvFsrJ92gK2+z8LJKZJE3SYdQDn+moLIcZ5ORwdwyG48q9tcZ2DABVQxGef6ihvdnAzhT5gZ8zWT+WV/bb/ub9zX7qcgH3gH8RTnms04pTilOKVsh+Fnqb++xn+bL/tuWD1BcfVj/Oeov1va/Zzfo/mn4Wepv77Gf5sv+249QXH1Y/znp63tfs5v0fzT8LPU399jP82X/bceoLj6sf5z09b2v2c36P5p+Fnqb++xn+bL/tuPUFx9WP8AOenre1+zm/R/NPws9Tf32M/zZf8AbceoLj6sf5z09b2v2c36P5rLHTjpVf4DX39XmDdXMhZGG0ojw5qpjD7DTDseW1IZW0httRD7YSr0K96hSwolLaAmi9tbG6sFsJ8xlgZo43BBYbNjhWZjk8F/FyOg8xWzYzw3jSpHvU4GS2ejb+fLBBycc56DOa+YP2v+k3TPC8r9pf2fOrPTTLrTB6br9E6+WkxGZVNTht90U68vZpKwi/wyhTrJo/UXF+ql1L6bMZHQ0WZTa11mYLpMCoyNuZXU63u9S9OsNXsr6GKS909rS2DxSyPaXNrKjTRzTKFiSFrdA5DsASCWPAU7UixJbTwzQnwOjhzKm2RCrKCEyWB7wIOMEHGcA8/NJGoermU4ZZ9WaDoLKyCnwV3DYuN9T5tJ9ntaCnenSYfTgM4tX/d+MdRHoysdkQ2b17E8ialz6+xRYyLRSJKE9ifULFby2tbnWglzOC3cxFDE8iojyCSWQkQZ3gojuC5OVyBVY7uV0ZhBJhGxuIy7nBwFyN0nzAIIHwrZz2ccUayTD8W6dYRV2UfPfaKuMXiWVDcVuMZBjd3LsJ+S02W5nd17rVRk8d/C5FfaX9E1UKFJ05hTpsixrJD4ipnVjVjdXOoyz3ktvLb6Urq08c0iPADsdIomU90wuYwFkkGXlUFVJ5xu26H0WOMBg8rKgVgQMuDvYAnPAxhuVBBBIPB+2joZ0DtMnTl7+FvRShT2NiQi3nlhqFW1dU7SUcOIA24D6o8J198JSn1PrceX8TmuOyUU+qtcNGscfcQIrF24MjysRkL4uUBORxkDJz1kLuS3tMCQM4YIAUBD4UADxN7sYPPIHOR0z3+Fnqb++xn+bL/tuXE6DckkkREk5JErgE+8DyB91ao1e1AAEc2AAP7PL76fhZ6m/vsZ/my/7bmPUFx9WP8AOes+t7X7Ob9H80/Cz1N/fYz/ADZf9tx6guPqx/nPT1va/Zzfo/mn4Wepv77Gf5sv+249QXH1Y/znp63tfs5v0fzT8LPU399jP82X/bceoLg+UQ+JmkIH4c09b231JvwX+a9CvvBkeQr+vj6/s/ke3b+PLhVbrkWEY6+IgntrX+/jilR/bom9F4JPbyPn8x5+X18fTilRiVGJ0l5B0NnR+u/pv6cUrsS4hf7K0ntvsR9dfrv5eTxSrEzyZDhN0KpbyI6pto5XRXHVobQt92E/ITGLi1pSFyPs3pYbG1vPJShA2Tznv0iWveaVb3CqS1tO3AxtImj2nI8yMbgcHG08EkVN6FIUu2UDPeJtz7sZ5x1zjIBHIJ+NeZ3tl+zv7OvtZY7XsZR1JqOmnVXpheLl9PeqdRYY0/lOD3tLlGNzJ1Lc41kK11ma4NKzCLiIybBr2OqqnWiqdUeTW2UqPIkcQ029Wwa6TuPSbe6Vorm27xo07t1MZdGTmOSQNtMkeJAOM+603NhLMyBY2DqAUlQBhg+Law8x4eR0GATXhZkX+G77Z3SrqLadb6frp7IllHobBy4V1Qci3+JY6zdP5JYPdSp+QdOo9bMx2A2zUvTaHG8fxgRk4ZZRRMfkXtg7YuT7DcXXZuayOl3kOox25ZA0ZmyfR4olEMa3yMZtqyKC8kgDMgH9wIrVSw1IzrsMbTq+5UcZkkcjBDohOeANo8hkeeKzj0H9njAfZ3rIHUjKuqy+vHVC2xHOcxxO9bhqh0lHheS2pyvN2+ieETJEmyr4eQ2U+EvIbtxbVlcLXDhKiUkR52uf0LzWbKdfR7KKO1tpBbpMQBJJd+jpsi76TksseQEDZI9r2gMbMOk3Szhrl2kmQ7MbVSKIueQgXO1Sc94DzgHGa9yP8PDLImbdNc5y5qvm1kd7Nk0kNyxYehOz4FZUx5LEtEWU2zJbSH7GSw8VtJaVJZdMdTrHpdV1b6N4l9X31yp3CW7EYbkcRxKSDnr4pM49+SetV7tHE9vdRwOwz3QkwrZXBwoA+P8Aca38csoLQ2qQ3286I7Hx9e/f6d/y50mq7Umq+rkkgu+PmASD/D5n9OKV1HIYJICSfp377Py12H9eKV3IuGVAn0kD5did/wBO3y/XilRCyJ0Q2ACNgnR7fLt3/wBP04pXDsJwdwPWNeQe/wA/l5/pxSpByOnZ9ST6u/nso6Hy1rZ1/tvilU5+F6wSAofPyd+fBHgjZ7aPnv8AlxSqPIjymdq9aiO5HcnQ32GgQdH6b+uz2HFKpjk2wZO0vOKCSNjt5HnfgaGu/bY7+eKVr97Tdva2XRnLK5Ca5ch5MCNEdtVLREiP2MpFR9uKm3Yq0PRWrJwxHFyGmGpC2npCvctr5Te3iZ7N3so6whHUEgIWLqgDsR4VJb2sgDqeAanezfdHWbUSbwCW5RS3CqXIIHXIXoPERnGDivKzo/1Lg1l5nlDmLSLhGOxK6tk4/IiZPYRcbZyKddVWRM1MqrZubexmTupdrXnJcmxaVW4uvHDTLq3os6krmT8gXOtRGa+hMjxm1Q7ohHOFQ7tqGGSPLvmXaGZVKkE4xya7VLo0rxWEsEKRJezP/V7yNnleNUm3sNyrDtg7xUEuCGyCWzxhXOpdlneOdQch6VYO/eGmxh/rdX0+SW19eYpRQ66stsdxzNOmGOz4OJzLnN7WbT28TqlR5UqQhmfBQhqfaWjz9iYSPVb0xLJBLcMsqek+kMzFWRg6gbXCyZEqbDuXI6Y5Bqbi0+3jmhW47ppEnEGUCGZZDtYpcsNy7RGdysjcsy5zwBqxZZdeY91F6M29pU22V4FIo8cbh29vm0DKainiIqnfvWycVVsor6+danI7Fu/pLa5ymNexaSOmliImxW5UeRstU2CCNllkaVyJJ3y2GUgHcwOEIY7R7I+GRWJNOjuLe8jjkSGWIu6wLC4aYuxQbW4RsDJLKAFHv4B+hT2O7z716OwLaoYXCg5DkmT2bRTJTIcmxPvAM19kZBShS27GvbjSI8VYCqthaKkhKoK0j66+jVg/Zm2nDM4uLi4cMTlSMKCUI6qGTGeecjPSuCdrofRtYaBmBdIoww4BUlA5BH1h5/dW4EZiQrRW64QrZI7q7kA+QfJ/id67fXnQarNV5iucUTvYOwN72DvWyE7J2O3kjilV6PXtoAJClK79la9Ke57gfLY8n+PjilVRuN49CCSew9I3sAfXX0PnxrilTzcFZO1aQP47P6b/APzilVXilcFCV9ikHZHkf7+f04pUnIaioBUtYbIJBIVsaAO/hP8Amd7+Xca4pVqWE2M0D7pxD3fYJ2kgaJ2fSD8+30J/PtxSrEsrGUoKS3HOj8IUyApQPxa+NOgQdA61regfHFZBUEFgSPcM56j3fDPn/wCsAdXcfyPKMEy+nq2G58+zoLODCr5Mj7IiRIlxlsBhcskNx/UlavStek+oBKj6CeQnaOxm1PRNU0+CITTXVjPHFGTsDTbcxKZMEISwwCeN2M8VI6Pdx2OrWF1IxSKG6ieRwu/bGGw2V8xtJGPv5Irw5p1zul9tnEXMOnrmaR24jWK2LWUXt/QW+NIgzU2dcauwjrfj07sC0jpn/bnIjsSyacaKg6yA658C6hY6jYXmo299pF88qD0eX0qO4VbXbKWBWRQVKoTuDKD4eTxivqWEWmqQ2k+n6pbWZQC4Btkt5BJI6bAZQSpJcFUZWwAeeSOdG7e4zKvk5U1j1bZw4tzAl4vXWjQupORY7iT19IyOPiUC+FgxIgxJi4OpjspL6p0ZiS7Hfj/eTqnKMkEtq93HayEQTXCNFNuneW3iSbvhGjse8K94BxlAQSMYAFXox6fceiveMXeFd8sISCGCWUQiIyNGqE7wAGGGIx55JFSeISLjJqudTNMT2SBGZhVtM1YJjTbm8tLtm5loqWbFx5y2sUvJhThGZm7ECJHrYUF1x8vXTQ47vUZ2sYbaZ5iYVaGCGXc7zOVeUk8OGXJIViEOMLzUHq76fp5SWSaEIS0paWSLwrCofu1IIbYpKk4A3Z5BFfTX7MnTTIenfSvB8bdjP1ia+hie+qilxhMOXL9UyS240tDamnC48VOtqQ24iQpaXQHg6T95djdM9UdmdHsWjEUsNmhmXJyJXLMwOedwBUN8evIr5G7T3cd/r2oXcZ3I9w/dnywOCV/2nyB6eVbgVsq1jhAWUoQPIO1aHlJ152PBAJI/ry0VB1e0C2Z0BKBJ3/2aTs6189kDZGiNeDvfYcUq74kyudKfd+7Cjodz6wNHyonsAD/3Ea2FfIbKlVcekjaSkj/061+R7dgD8v4flxSueKVIuzkI7BOzsb870d/Lt28d+KVTnZ8hQPuxrfzAIKe30PY7/hofPe+KVSnWnZGverWR3BBV2H5kfMq8dvp388UqUXVJO9LBHySUJPbe9b7f6jildJqQTskg/Qej9QCSR+vnilRpoEPfAplxYI0o6HpOwdb0nXj5k6Hfj/n/AD/nTin/AN+/31J2nTHGsgiuQb3HKa3hSGVsvxrmHFsY77DqFNutOsSkPNKadbUW1trQQUkpVsHmtc2drdo0dzbW9wrqVYXEMcwZSCNp3qTt56Aj8OK/WC6vLVg1tcy24GCO6ZkIIOegO0gnyIPU4wTkYjl+xV7M9gsuzOjmAlaggKDFEmM2UtsrjoQpEd9lC0oZcWgBaFJIVtaVKSgprbdhex7v3j9m9HZyNp/0aKnUEnauMsSB4jzjIHWp7/q3tGR4tYvyfMCcheBjwrtO3gDzP31feI+z10l6erU/gfTrBcWluNJZen0WMVNTaSGkeooblWkWKiwloBUVeiVLfHrJXoEnc3YaNpOlIqabp1nZ7eN0MEasVPJG4KGBBztwQFzjBPNQ9zqF/eNvu7y5nY5yJJpGQE4B2oWKqDjkY5ODxV6OY0hrZEdwDZJLaiUg+QR6Sonfnxsdt+eSValSv3MAdD1j6A+nY/I+FbHz33+vFK5FUPkd/PZCVHf5bVrt+YP574pU2mubRopUUn567frrz+Y4pU607KjkJQtSkjfy7fEdnt+R8a+Xb5nilVVuwWVelSe2vOu2x/8AU/68Urv+w78uDWvmD+mtHilciCN93Dr8h34pUYgtfNbh+o+ED9e/+nFK7fssceG9jz8RJ/38cUqMNNJO0toH/wAQSP8AM7P9eKV2cUpxSnFKcUpxShAV+0Ao/UjZ+vk9/Pf+PFK6VR2FeWkdjvsCnx/7SB/TilQmGyrQSFBSjr9pIGydD4lDSR37qUQB5J0Dx/IHyz59R+499YJwCT0AyeCTgEZwACTxk4AJJGACTWqyuvd7Xz8lrbvpBnCnYMuxGLysZq8gtq28rYrghxJVvPmY/ARSzJNiViREjosWo9OxIumH5TLSGJFcGu3EbzpcaVdko0ptjbxTvHPHFtXc8jwoIy0hIwAwEatMNyjB7gPoi0m7tdFvNL+kPs53V3DajWodZvNIsb3TbycNPPFYWtrq10+owQWgBilma0knv3i02RLeaYPFffTXq9jvUmuoZcKsyiqk3i50REWxxq9bZg2VO203dQLSe5XMRah+vtBPqQxZrjyX5NZJUG0BbCV7thq8F/HCyRXMbTF1w9tMFR4QonWRyirEUlLRKHILmNiARt3VTtl9G2sdjrzVLe4v9EvYNLS1naa31jTO+urTUGeTTbmwtBdtPqEV1YG1vzJZpLEkN5FteRY5ZE//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEDBQEAAAAAAAAAAAAAAAgEBQYCAwcJCgH/xAA/EAABAwMDAgMECAUBCAMAAAABAgMEBQYRAAchEjEIE0EUIlFhFRhTcZGVodQWMoGxwUIJIyQlNGJygpLR8P/EABwBAQABBQEBAAAAAAAAAAAAAAAFAQIDBgcECP/EADwRAAIBAwMBBAcHAwMEAwAAAAECAwAEEQUSITETIkFRBhQVI2FxgTJSU5GTotEHQrEzcuEWQ2KhwfDx/9oADAMBAAIRAxEAPwD0Ea5fXUKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUp/+541cFJIGCc46A8A+JOMD5mhIAJPAAyT5AVcY1Hqs1PmRKbOkN9/NbivFnHx84oDRHzC8DsTkHGKW4s4WPa3UEaLnczzRLtIyMHcRjnA6eOM5NF74BQFgem0Fs/EYBz/xnpzVAhC3ZjlOaT509oBTkRhSH30gqKchDKnCvCgUqDfWUK91YSogHxJq+kzTywQalYyyRbd6LdRMy7hld3eAGfDBPxwaz+q3OxZDBKEbG1yjBWzkjBI+B/I1uvRpMb/qI0iPzj/iGHmDnnjDyEHPB4x+mpRDbyr7mZJWIOFjkSQ5+SZIGfE4GOc45rA2U5cFRnHII5/Lj61sap2b/db6jB/I81QEMMggjzHwpqwjBIPUcGq00pTSlNKU0pTSlNKU0pTSlXigQIFTq8KDU6m3SIL61h+c42txLfQ0txtkBAPQuU6lEZt5wBllbodeIbQrWKeR4oJ5I0EkscMrwxHPvZUQskXA4D4IJJAA8axykgKAxQNLEjOACVV3ClgG7vjjnz4HiOWXqf8Aw8FmnWZ7UlKSGJTUeLXFqHQR5zrz7jjzbigogFmMnpOFhOOka4DqPp3rTi5s7uO+02R0cL2UchjSTd3R2yg5AUlQQxAJBYgHI3q20GxYxTLNHLHu5WR9pJVlwrJkYzghskgg85GTXGFXr1XfKkumtUzoPUll6ZNYQDkZCEuMJI6Rx3SrAICinIHPJtV1MyM7XkrjJb36u+dw2ne4BB68Zzg4PXGNhFpa5AS2jUDoY1jAH1ibrjgkZz0PFYFUpUuTkqlpSvPV5y1MuOlShgnrdW2ec84Iyruk4wMKaldRtu3q7cnGxdoY9WB2biR07xOM8YGKo1mjggxKVB7oIbgeHOCT1PJyc9fOqWmbhRrQSpVZmUqoJ8xtaDWJ8JDMdDeUlLcSK0pUptPCnGpDpQVo6cYOtp0f0pvLJleI3AcAn3SygnBPdyAvDnjk458jmo290a0uUZQUGI3HJRe8clSAWycfDkccE4rKWt7trbneZgxqTT5E51xLK5VFpdQjsNOLHT57z9NYepkBjqJLkmpT46Gmh1LbPu56dpvpnrMwDmJyFCk9sGY7c4IJbaDuBwuXyDjAIFavc6TBaxsvad7blQr7sHzIBLfQAg8DIqvqrVLaejGkyH32H6fDkyG5CWy5CnvNlUyniQySxMREc6UtzGf90+lXulfQXF9SimaeCKWSHsZZAsrKGyCJFDYUEnK5PdYdR1xnFa7Ez5dHIYoxAZcjcASASCAQSMHB8+tWzV9ZqaUppSmlKaUppSmlKaUoTgEjuBkd+6eR2+Y1UAk4GeVcYHjuRlx8ftdPGqEZKeQcE+RAB6/DOPripKvJEimwpUdx5pb0KM8otOqR7y2G+pXuqyPeBPBwcn3c6+Udaurm11S+hjmliEd3NGQrEAlHJDGM5UEFyMeBHWuj2HZyWqlkTBUDnaQy7eTuwMg5IJ+fNcOXdUrmYbWmPXag2gJ91Jd80ZOSnh5tYAyPePIPOe+o5NVvR3Xm7UE/alWMnBwADlSML4Z//PUtraqO7Cq8/wDbd0x9A2M44PmOOlRFvW6b6YcdaauqWlI6hyxTu/VgYKoRIwADz6A57Y1KR3U0jIjFAGwAwhhHPPPEYz8s/XpWCZQhOxDgHGWeZuMeJ3jHhzn65qKN1XXeUiUppy56i50rIS5mIyQlYyfLW1EbcQOoAgJKefeJPBM3azSlCTIAcgBSkY45GMBV4OPL4eWfCYkOWZVZhkqSGJXx43O3jz5E9c1k+2SJ8+sRnKjUp9UkBTa2fbpsuZ0LK0hJSmQ6tCEpCc4R0gAnGewkIpZpWSJnY72VTtLKpG4YygODj/mvDMF7Q91QAo7xUAfZIPJwPmQf/iuw1I6UpHqlCUk/EpSBn+pyf6677E2ba2QrgxwxLz17sajGMcdOnhWpEDLHqSWOfPJJ61q1dSmlKaUppSmlKaUppSmlKd/nq+MsG7n2sH/7yRSpI2+4Jdp0h0DqUmnhpY44W2pTaiQPQdIPwB5GMjXzF6b2vZek2qCQECS5eZOzU8mVVZyeGPLk4HGOeuc1uumSs1jbEbSoTslPxV2yDzkHLjkgDnjoa4xumIXmX8Ky4kEFBUAQno4AHcnCs/DGCDgjOp+rbl3IWwCMqVILYYEncQFGBnr5eJIqYidlwHKBck8MC3TjADE9R5dMnp0hxf1Lf63iAgYK8q6c4ACs8JCiBzn1xx/SRiUqUIBITlep5B8ceHJ8hn4mrJpidyjbtzggqR3ep54x0H8VEqvUt/2vLiCUhWQoHAUkfzEDPUPh0qHvdxrYbaMtHvYEFTuOMY456DPUAcD5Co+aQIMZAJU4GCcny6cD49flXK2z9Mcbqzbr4QxHZeaIcUvoUE+YhICgSAASrCCeDnA5IzN6XE819aoA2HniRTtYA5YBxyOuOmcDOPrHzzqYGMmAVVxnPGG8Noy2SCATjjj51OM8EjtgkY+GCRj+nbXeSADgHIHAPIyB0OCARkc8gHzArVBggEdCBj5eFNKrTSlNKU0pTSlNKU0pTSlNVBKnIODSpf7R0lu5NtstxUrnUipVCCgNSUJdloU4zMR5iVN9MfympqWghZUH0s9YWjzAEc29MPRyK91KG6ViHuTHFLgdCu0lzgZwVBBxyD446Z7HVJrVZbNAmI9zqTuyQ4Zzg84IAAHx+VcCbu23WNtrcuDcOa3SqNRYDb0qTPvGs2xQ40NtpiE3Gj1OuVuoU2FHXVP+cIaYFSQ9JlLhsNtDy0pVED0PF3m1tpGKxqGl2kg45I6Jk4KDy64zxis1rrqLIDJt7QkBN2CFzwCQWxyMjPlnjNddt2+KPww1CU1Df8SW07bzbUWoiK3VJq1PddLqUtJm1KBRn6NKdZnU+psKbhTl0wooc8oU77JUFtWaX6GSPdywSwpHEnu5pZGIT+3/AEi2G54zuVTnzBJrPeekIih7QAOWPARMnGOpweoIIJ45wD51uW9TLX3Ttxq7tuLqtO+6HMbU4qpWpctDrrFOdecfcZp9TTSZ81dNnMoCGVxpwjzOlKpCmXED38956PJp1w0Lu8Z2q6hY5CgAyMhioXGcEkEgdTx1sj1mW6jSTslx0zjHBPJwMgHy+RqQG09iihprL1cp4fXFhOLguAFUdMkZU3IUvBbdQgdK2krGPMAUAT062bRNLtRJZy9oe0Eyui/3na4O76jJzkgjHSo+51AyzFQpVQCrY6kgdcZ6eHJ6eFcla3eT7b46b2/yatXBAxwMDA+GOKatqtNKU0pTSlNKU0pTSlNKU0pU3PCw6Zls3NSzhSYlwMSsYyoKqVLajoPoClRpzgSCoYc94cg58OoW6z27bgSyspTGAQxPGD8wPEeOTjpEXEvZ3gbAx2e0HOFbAORnGCctggZ6DOK8w3jP8UO399+My491fFjcVzSPDXszuFurtLtvYVrXSJkemVO05svb2HWqLadDj1KmVC67veiXxc91vbjM0+vUmPSKRQ6D1wHEMyfBeWWoz2Tafoht4NSkEUkrzxg4CuC7GUspKKwQDYjKCzBmAFWwlGaVpU3IApIUbtpZgo8AcDgkdByfn0ySfFdtvYXiQtq16CYCtkodx2xBkbiU13+ML0t23f4smXZDkWxddxrnsuNwotwooV5M1mgVgMriVpdDQ+z5Qme//pKa60aW8xMmrGIr2KzzR2zzmIRSGWJNodCYzIDvIbcMdAatbUhHMluVU2mQHKpl0jU7tkUoPXIHGM9TyBXNloeIG1rNvCdv14dLword22Ze9TmXxSKY3U1PbkWvU67JqtU/jCPSqJbVivUy6rfiwrbLDVMYq8S5mU3rSqZEj0uoPwY230+/spEs9ViMkFxbCIRkhYYysSRAKzkyyFWKyF1HcJ2t1ycyXEHZCa3/ALDlsh2ZxkkgbVIHcXBJ8fiDj2LvIp7NhIqENOWK7FpU6nuKBS45Dnpiy4xKcnpxDlAuJUcgk55BxZo9mY7qVeQF3kADcFwzAJkZAKjrnB4IIqrSiSYFVOxkHPQhgvPwwDwOPPODXGmtkbqfmf8ANSSfYX/av+BTVKuppSmlKaUqSH1WdzftrZ/Nl/ttbB7AuPux/rPUX7Xtfw5v2fzT6rO5v21s/my/22nsC4+7H+s9Pa9r+HN+z+afVZ3N+2tn82X+209gXH3Y/wBZ6e17X8Ob9n80+qzub9tbP5sv9tp7AuPux/rPT2va/hzfs/mn1WdzftrZ/Nl/ttPYFx92P9Z6e17X8Ob9n81ITYDaq79tZtzG4lUhyFWItMLH0fNMlxMynvyCkuJLLfQnyZTvS4CcLCQQARrw3+lS2saGRV2O2CVcuQy4K8Nz59Ac9D4VHXl3BPsMKyKy7yd/IOdpGMEgcjnPUY8jXmd8d2x9m2ju34hdm9yduKhWbNG/EPxJpQ/umm26Nuzs74iJlzRKfTLOslMh24pd82HvtWp9nvVGxaFXalQ6dUI82WwxDuKryKfqGpR3cOrWl1aXfYNcWzRRMtsH7KeORCRNOylUjaMscM2089Apr0WN6FtrhJolk3ZAIO1hnjIAye6wBBIwwOB1rzBU6xfEpeVp1Hc23Nn6LUm7aesxFk3RcFJpK94o1KlVeoUnblrbyly50OvXqq3JFoTKVSarDt2sSqXKt+pOy3ZLwfWvfZNV0pLmCO+1GUSEM8myXbb4jQBzckkQRqwI2KzAuWCpkdYrsZipCLuUd4DjeQSeiHD5weFIBxzjAzUu/C7ttWr5trbLaGybXuu3tzPExctBpEuBV6fFqlq1KfFqN1UDd+7bstO/G0rq9yWdDgPXVJciIal7V0mfUHqRQ2nqhDee1a+kN1rM8nrNpdWund+RY3JmCOI5ogssGTCjqqjDsFmfEZDc1IRTRx2yxqh7R8g5DLjJCjg8Hqeh6da92ru0tRvOlQqDZ4hx27fajsRWqhMUwwilxWG4TAU50OF55tpqG0gFIJAdcJBGC9H7aS7vbgRBcdm0p3Eja7yE4POW7rEDAIzg54zVyzrBtaUFkAPA5OTx1GTwTnBH1xxVq+qzub9tbP5sv9trajoNwSSVj5JP+q46/AcCvWNXtQAOzm4AH9vgPjg/mAfhT6rO5v21s/my/wBtqnsC4+7H+s9V9r2v4c37P5p9Vnc37a2fzZf7bT2Bcfdj/Wente1/Dm/Z/NPqs7m/bWz+bL/baewLj7sf6z09r2v4c37P5p9Vnc37a2fzZf7bT2BcHwiHxM0hA/Lmnte2+5N+S/zXYV9IMjuFfr2+P8vyPHH363Ctbr6KhGOPeIJ4xj/PbSla/bomcF4JPHcevqO/p8e3w0pWsSoxOEvIOBk4Pxz8M/DSlbiXEL/lWk8Z4I+OPxz6dzpSrFcUp+BFiT2JIZ9jnNLcZUklNQbcafaMBTgCvZw+CVe0Ftzyy2EgIUsLEHryM9llCA8b9pyOOzUEy8/7OceIBqqjJ24yWAVeCSGLLggDqcZHGDz1xmoreKzwk7L+N/byg065apLo1zWvUGLi2p3esldIdvGwLiYlUmtgwmqzCqNFuK3p82j0WRde390U6bblysU+Impwo8mPEnxdKEkboyt2VxbzKVZASc7gVcAjBDbG5x4HB4Oav95BIWCkOnOHU7fEAsM/ZyTgnxGQMgV0Wy/9jN48LS3km7p2N4tvD39OSKqivs7kVXbG7LduyfclSr6Zd73PdllW5R5dp1aVcttqetui29SZkOi2c0lhSJleisLiPx1zp2iTWXqFzHNNaSNia1AeYpEsQEMIbcjoYpQJSykq52xnIYkehLu45fuBxIrIwwGAGOjA9DjHJUjPTwqUuz/hU2w8BkCRed37g1zfzxAXW9dFOp96XKmkUpMSTedbnXddFqbTWJTF+wWbRLgrifaLsqkFqRWK/KjUtFZkQISY9JYjL6+s7O2ENvBHbRzGCPapzNctABGiGQ4AVIycAkgDI64IlbLTri9dl2u4Qb2ctlYoyMk4wSuTjgNnIB6DjtF8Mt5ou0XvJejohfRcynQ4qR5pQ5FdRIK3C8400HHkyo7zL6WwthCmx7O8+yUPObn6EqDNfycErHCp45BcscAkdV2EN55GOM1g1O2FukahtwYBwT1w2Tg/Lw/9VKRypQWhlUhvjvgjg9vjzz8OflroVQtUaq9Tkkgu9vUAkH7vU/hpSto3DBJAST8Oecn0xwP10pW8isMqBPSQPTgnP6cen46UrUKkTghsAEZBODx6cc/2/DSlfHYTg5A6xjuDz6+nf9NKVQOR05PUk9XPfhRwPTGMnH+M6Uq3PwusEgKHr3Oe/YjsRk8YPfn5aUqzyI8pnKutRHJHJOBngYBBwfhn45PA0pVscm1Bk5S84oJIyOO4757DAxzxkc99KVjF23lLg25WFTCtTDcJSlBEn2NY8pbbqXEvhTBQlno85xIfZ85ltyP5zIe81Ebq3FjcttJVYWLnkALkZORgjHz44xzXpsxm5i4ySwXHnuBP55Ax4eYNQue3not3UXa6iUy9EV6faaq3d864LGiVJ64apDYsODSSabARCqdbq24Fqu1BUuuudLU+LGjQ4syiVJmbI9m4lqF5a3UVnEk/apaXF1cmazdvWWAhCERrEGlknhJBJUHdtUOCgbO7WunSW9xezSW4T1iO3iWK6Xbbjc6uBK7kIkM21ljBUd4na2WXGW1bem7qbY64tl16I1V2nKc7L3Q3DqEaswL5mWuua3d1v0izmEM1SnXc5Z9DerVTiw6bEhxauiXCZa6iKiuN1J7+PS5BpFzsuWe1ebUb8+trKlmyi7t/V8rLHNJaorPkIA25QAp49sOm2bX4l1S32x7nSKws0EBi9YiBt5hcFSs0ccj9Fy23BPKmuvS9GrflXdfzFCqFnUKQ7ApMm36kmjCp2n5l8xYVLh7ZGz6zPqF5NXXT4NQm12vVS0Z9Ipia7csCRcCpbsJLmoe3lha51DZcwq/YoVnjUvZp6yqqtslrIZGifYVbfEyKjNluSCJ71SWO0tWeG6lQXTxSx9JWS3JYXQlCqjQnJCCVHd1B2EdBOvwRXfeFzbL0qZcfWiotzpdJ9tT1Nu1SHSX3WWZrqXFOFa0OF6mNuKkSFKYgtoL7hbCj2b+m88t3okl1Nku9wsQbGFkCI3vFH/ltH065PNc/9MLa3tdWeK2PuwqyBRj3faKp7M4A+zn/ANiptRmJCsFbrhCskjlXJAPcHufvOccfHXQ61Wr8xTnFE5yDkDOcg5xkhOScjjuRpSr9Hp7aACQpSueFY6U8nkD0yO5+/tpSro3G7dCCSeB0jOQB8cfA9+2NKVXNwVk5VhA+/J/DP/1pSrrpSvhQlfBSDkjuP89/w0pVHIaioBUtYbIJBIVkYAOfdP8AU5z6cjGlKxSoTYzQPlOIe5yCcpIGCcnpB9ePgT8+NKVglSqMpQUluOcH3QpkBSgfex76cAg4BxjGcA9tKqCoILAkeQznqPL4Z8f+OILxpdYrFIqkVksuvSKfOZjMTOryFSnIryY6JJTkezl8tB9JQrLPmDBHB813A1xbXECgN20EsRVjgOWQ7FJ4IG/bnkZHByOKywSrDMkhJUJIr7gCSoDcnjxCnjnPGc5Ga6l9uqRfuyG6syPclHuK3bDk3VVKy1V6BT4U2oWzc8qHU7ZpdZokuqBuLAgVWPPVRJE2Sw61Waa6AHoRW3MY+WbSz1T0a1i4ttQtbi0tp7qURyLbrMIbmbdAtzbTE7YwVkCqpIVmwHGSGXul3JpuvaNazW9xDd6lFbQo0DybVuLcSRyGOZF7zPEU93wWQEuCNpqP1wVyoWZdFxtxrpRJtu06XTZdGTT6PQ6dVd4a5bNuKsX+Fdz2rMnOr+g6jS6/XJN0WaUVO5zBemzY9TegSlqRrd3JJBNMr33aWdr2UkXZ4il1G8ht+yMOo+rAmWKQPJ28GCZEUgPgkHY7WKC9tLdBaL6zcy7GEyO0Om2z3Al9asDclcSJ2caxzr7tZQqENmogouOPaV13XLsB6t1ihXTTWoL6byp8iLJitSXX3FW3SaeXpdckUmjqi0s0JpMqnmbJp7bc2mzmGGUr1awvpLS6vp9KguNRFyWilgkjlUI0rFpEjjcvKY1LMIiowFCxkBVAG23UFtNY2cepzxWslt3RLHPHi52N7uadu4A7KQHQDIywB6V6KfCja92U3au2JNSoVUtb6SYVPj29UQ/HkwYErodgplRX22HIDjjSlOiAqLDXFDiELix1lSE/ZPoJaXVr6O2YurP1CSVzOLYnvJCUKwkqeUJU52nnnvc18tels9vNrVyLWdbiOMrGZkA2MVAGFYY3hSoBYdcck81NOmyqrHCAspQgdwcqwO6TjvkdiASR+utzrWqzaBVmcASgSc/6MJycY9ckDJGCMdjnPA0pWXxJlOdKfL8sKOByesDB7qJ4AB/1EYyFegyVKu46SMpKSP8Atxj5HjgA+n3fLSlfdKVQuzkI4CcnIz3zg59OOO3OlKtzs+QoHyxjPqAQU8fA8HP3YHrnOlKtTrTsjHmrWRyCCrgfMj1Ku3Hw576UqkXSknOFgj0SUJPGc4zx/caUrZNJBOSSD8B0fiASSPx76UrWmgIe9xTLi88EkDpOQcZwkjt6k440pWmVYFHqMdyJPpMGTFkNpQ8zMSl5t5AUF9LjZKklJUhJ6SOCkeoB1hmt4LiNopoo5I3wGV0VgcEHxB8QPyrJHNNCweGR0dc7SGYAZBGcAjwJFcWVvwieHu5ZCZtf2nsOoy0vqkh563YpUHlMGKpw9Km0rWuOQ0tS0HrQEJVny2+iGk9F/R+V0aXRtOkCP2iq9spXdtK52jCg7SRwMY8PKTi17WIUKJqF0qkAbUnkQY644bJGSTgkjPPWshtXw47O2HKXUbJ2zsG2qk4tTrlSo9rUinVRxxQwVqqTERM0kjCekSOkj/T6a9lno2kae7SWWmWVrI4IZoII0JyMZJ2FgceTAdM5wMYLnVdQu12XN3cXC4IAmmeQKDjO0E4H1BrO3LaQ2SryHADnKm1EpGB7uOkknPpxx6jnUnUf5fAYHwA6AeQHgOg8KpfoYA4HWPgD05HyPZWR655+OlK+ilD0OfXJCVHPyyrHHzB+edKVVppzaMFKik+uOPxx3+Y0pVa07KjkJQtSkjPpx7xyePke2PTj1OlKurdQWVdKk8Y744yP/if76Urf9hz3cGMeoP4YwdKV9EEZ5cOPkOdKVrEFr1W4fiPdA/Hn+2lK3fZY47N5Hf3iT/ntpStYaaScpbQP/UEj+pyf10pW5pSmlKaUppSmlKEBX8wCj8SMn49zz35+/SlbKo7Cu7SODngFPb/xIH6aUrSYbKsBIUFKOP5kgZJwPeUMJHPKlEAdycA6fyB8s+PUf5HnVCcAk9AMngk4BGcAAk8ZOACSRgAk1FZW/ddp8+5abW9oL4U7Bl1EWvKtml3BVqbXKbFcEOJKq8+Zb8BFFmSaiViREjoqLUejsSK0w/KZaQxI1wa7cRvOlxpV2SjSm2NvFO8c8cW1dzyPCgjLSEjADARq0w3KMHuA/pFpN3a6LeaX/UP0c7K7htRrUOs3mkWN7pt5OGnnisLW11a6fUYILQAxSzNaST37xabIlvNMHizvbXd63dyadQZcKmXRSpNcXOiIi1G2q62zBqVHbabrUCqT3KcxFpD9Pqgn0kMVNceS/JpklQbQFsJX7bDV4L+OFkiuY2mLrh7aYKjwhROsjlFWIpKWiUOQXMbEAjbu1T0y/ptrHodeapb3F/ol7BpaWs7TW+saZ211aagzyabc2FoLtp9QiurA2t+ZLNJYkhvItryLHLIn/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwAAAgEEAwEBAAAAAAAAAAAAAAEFAwYICQIHCgQL/8QAQRAAAQMDAgQDBAYHBwUBAAAAAQIDBAUGEQAhBxIxQQgTURRhccEJFSKBkaEYMjVUVbHwFiMkJTNC0URFdISyxf/EAB0BAQACAgMBAQAAAAAAAAAAAAABAgYIAwUHBAn/xAA9EQACAQMDAQQHBgQFBQEAAAABAgMABBEFEiExBhNBUQcUImFxgaEVMlKRsfAIQsHRI2KS4fEWM6Kj0oL/2gAMAwEAAhEDEQA/AN/6RgAY6d+6vee3u2x015vWceJ8vLy93QfXn309KUaUo0pRpSjSlGlKNKUaUo0pRpSjSlGlKNKUaVZSAQT++KNKrSJAGTpSnpSkSAMnSlPSlIkAZOlKelKRIAydKU9KUiQBk6Up6Uo0pRpSjSlLO4T3P4d/+NKU/X8vwHzzpSmBnuB8c/IHSlLSlMDPcD45+QOlKWlKYGe4Hxz8gdKUtQGDdCD8KUwM9wPjn5A6mlLVO8T8QpTAz3A+OfkDqwIIyOQaUtTSmBnuB8c/IHSlLSlMDPcD45+QOlKWlSMZ56UaVFGlKNKUaUo1DAkEA4PgaV3Nwt4VRuJDNQVGqzwnUxbRmUtDSYqm2JC3UxX0T5SH47/npYcIaba5mVhLbuCpJX2Wl6dFfhu8unjkiPtxRorDZ0DlmxjJOAPjyMc9VqWoXNmYxFbxMkilRLJIR/ijJK7UUkAKMlmAOeB512HO4CUekuobny6kQN3cLcU4N8BKS2ywwrO+VpJSAkEJVkZ+4aXYojM0kiEchdwCHJAy3Bbx8COnjgmuqGs3nssFVgeSO7UgckYPtZ56cdOMnOaro4P8OQ0nzahW21qQvLjjznlMuJSVIUtKWjlDhAbwkk8ykq2TkD6PsyxVNzM+eOAQSM9Dzg4HiTgVK6xfs/tJAqA5A7s7m9xwSOOW69ByOtR0Xg1aUllxSqjWWX0dG0JQEK/3IHmvNvJTzDYr5FJGehT14Bo9izEMjphdwc3PeKT02FQvB4ByTkg46YqX1m9QA91A/OANhIJxn2iWHHOcc4PXwqOuTgrQqPRJ9c+v6pTYsFpp3nqDEGpodDjiEAeXT0Qn0FS1BpAQ08SVBRAxg0udGtoIHuFu3jRU8UzGjE8Z2b3O7G0ZGCzEnwrlttXup51T1ZCzbjsWQIuFBZjz7KgKCxy3hnJPFY5EY7g/D+Xx9fTWPo4cEgEYPj16ZzWRjOASCAwyM4zj5E0tXpRpSjSlGlSBk4o9fy/AfPOlRTAz3A+OfkDpSlpSmBnuB8c/IHSlLSlZR+F6uR6RWLybkOJb9qo1N8olXKVPoqK47LackJCnVzPLQo4SCrBIPLnjfX7TQIJbi+Zoo7iWK2iYAZmuHI9XgDEhUad12IzcbyMKxO09ff2k14YEiAwgkZ2P8qqCztjIJ2qNx54AJ9xvu7+IVGnN1B6FUXMswW6osKbkOLTBcQ8ovJSltRHkusPxXmsJcRIZcaDSsDOIwelbsvqUl73eoxE2unjVHjlilmc6a3eI86tDG4HczRT21xA+2WO4ieIjOGL/AKS1O1VDLb4FzO1vFIHCr3gK93hmB/7yOJI8DDIwYEKc1gpX/GXalIq1MpUqcFt1mnu1WlvrbUGZ1PjuKbkuthCSeVhIDj6RyusIKC4gEgHzWT+J/sel7BaySzx2tzYx3ttdLETELaSWWCJ5SiI8XETM0ThnVfvEnArPbX0N9p7myurtbdGFnMttcRlo1dLl13RxlmYKTISoj6B23BSSM1e1ueLa2ZzBlw5NLiRWstuMzX/NUXAQlDiEuL50eeCC2kpGSoI5UKHKO+sf4iexlxazXQ1W2gSAtEqzM/fOFk2owTO9hKciMkZAwWAUV0936Me0NtLHB6tJP3id44jQphRnvF3Ng7kOCxXPOQDxUxdnHiZdlWrfDcsNJMOmxKtKXFU0UMQEToMaOuQy0OZlUuouyWWG3VhwtxCsIKVKWO90n0pXHaXtZqnZOCGNbaxs5bp51mjcsqJCI3kARWiE0kzCOKYB2jQuG+61TN2FGl6BD2lMvE13FZRwMoBeSYStLhuriCKNHcq5wZFBIPsDr7XoNdTRpSjSlGlKNKUaUo0pRpSjSlGlK7J4WVWPS7ojCU+mPHnSqNHcKzhDiotYi1NhhX2VDDz8JDXTOVAAg4OvN/SRNBHpWmNd3C21snars67yNwMxXyzRRq21lRpp44olZxtBfGQSDXb6NDLPPeLDEZmTStTcqFLlE9WZHlCDJYxq5bABOAa6f8QFzLsq5r9tSJUZUSvW/dtRrUFeVvRXbIu2IKq7DkEKSUstTlyDGQclhbCFBYDruvzb9OWt3vo87Xa12e0q71Gy1e27V6jeabdo8jIezXaO2j1GexnMUgSSJdQLiOOVQYnIkjyJHJ2I7EaP/wBSaJo+s3dtFPpt1pFrZSoEDOmuaXcC1WZdq+xmMR7wp27JBEuBHltLHHC9ao1AnLKadHbptGTW4U+a3JTPkQ3ai3Cagw+aWtuL9awahIcSUMtqkIjBTw5VtuHyvRlfX5mhv5zbXMcKm3IaVXuFVJJo4dhJUKrlnCkDqc5ztrYns9ondMXAmmS5vFtZbY7Wtg3cl5bl9qs7yW8saKrNkxl17vDA4trw43DOvPipY1pxnXp9Gl3AidOYkyC46YVMaVUn4wdSAZCZT4bjIaWtTrgUrmyhGdZV2f0cz69o9pcxoyS6lZqbMKx9bk3hjGwYruMmwuyn2dvsg4Jx9HbfS7XS+ymuaw4eO8S0KQkCMY75hCzhOQuxXLscBd2QATjOz7hff9zV7xD8b7XnPUZ6iUpftUV6ExyVOU7CmUWlxkzXCgFENltc4ojFbhEpCn+YJUhB3b9CmoTaj6Ue3ztJG8apNKxS0igLPHLb2XqzyqxeRLeOHuljdAq4UjBGTq16SdBsNL9FXYe+tku47u7ljSVZJCbUh4ri4M0KYGZZJXjaWUKAVj24PFZS627rXSjSlGlKNKUaUo9fy/AfPOlKYGe4Hxz8gdKUtKUwM9wPjn5A6UpaUrmH24jE6Y6pxKIMVmoAslSXS7DqtMdZSgp+0Vrcw2ACFHnIBSdx5P6bIZZPR7qc0KCSawv9F1GJG+6z2eqW0vIyB06ZJG7HHU1mHYRWftNYwqVHrUOo2xLkBAsmnXOd2SAQwUqMgjNW79J59U2vRrE4hvPpiVGqVGZZ1UjsLbSqVCq9Il1JAkpbR5qzD8h5La1jlbZUpZIQkHWpn8YXYl9Ug7NdtraJfX5glnqOyNFWW1kt1uITLOoXvJIZAyxkkuUbaQfZx7X/AAyXUl/qXaDsrw8NrCdWtVlHsrPbzvE4TlQgmIVmVMEynjauRXnM441kO1KZCTU2pT1Xpy0JjpYkPJbkLbgRINHZcUpbaksFtb7csNoCCS0jKShxesnZq1iuXjvAsjSW1zC0rE7e77tXM0oUe0yFSIzGXwDglQV43R0JDboI/VNqRMw3MyxvIu+R3mZeCXOBlWw+OQQvFRHBan3Dw84y2SKpT5wm29f1ssTorTqlKZ82dFlSnOeMtTDxbp4ckFCHVIdS2sEKCFp1mlvPFJqumzKwDW91bahmMLKdtnPHKAhUsUY4JDdeWB6jPF2lFtq3ZHWUjeEJd6RdvG7KM7SskK7lb21RpCYztzjOSwBzW5vwo29EbqvFq9HkrXcVwcQ7uiVKS+6XZbcaLV48yPCcwQW2kCU241zIbL2VrxlBSnbX+Gu2ln1DtbrMg2yTNBEiEqshM9zJeTF1znDlowWIHGADnNaZfxA6jL9m9h9AUqLCx0u1uIokU7S4tEgd95GDuKspCngc9CDWZ2tva1lo0pRpSjSlGlKNKUaUo0pRpSjSlXjYDMSRd9Fizmm34sp9bLzLoy24hDS5SkLThXMlQikYIO5HfWLdsI4H7N6w19FHc2cNsLqa3kziWO2kWdkwBySI8kDJ4GeMkfXYSSx3tqYGdJzKFhdBlo2cd2WCllBO1iBz485Ga6I+kS4uWjafA7h5eNZoNYu+uXZUbgplkWdQXYceRVa5UY6bKhSa1W6jAmR6TbdLk1SGmszJCHXn5E6NFhtSp7zDZ8E7S6RpHpY7BdiJNcuZLbTrm1u72+mty0c9qbW3mihuIEdCrtazoFlhcgSRMCvtqGr0PsbLrvY7td2lg0kKt7bi0QvIzMrK06XBj/wGyPWHym5GJibLDcDsHjsvPjPxuhcVEQJqbKptwWtcjDDFpT7Wq8+RPapU97ypjDMSqvSalTIbDMeTUVLqdOmx+RDYjOozy/BofoT9FFvombW51m8i1PT2mOpLqVvBG6vCN8rxyW0cNq0gAUJibc7lnC8O2ytx6RvSNcOWktNJ09N4ha2NrcTzKZU5nMgmM793GxDSBoQQQNu7FbcPC3x3Y4y+Hio8Pf7LQ7X8RFtQ4HEJEqnrp1RiXAxa1VFbk1dEhlTcppVLokxcCZSas37QzBmRZMSROhplKj4r2n9HXZ3sV2a1ZNGjm1K3zO8V8lt3d1YrBvci9fHMKCGSLvYBseR9rpG7pnG4Nf1e87dQXWv7LKxurM2V1ZLftLbm31K0EG2xEkrOmGf1pI23GNxhSVJc54eCx2fIvbxUPOyRIpieKkAUxJylUdcqBPn1BjysAIQ2++2htwf6raEkjlQ2o+hfw2Wkc3Z2/wBW2Klxdixt5wocozW3rRSQOwUlmjkUFdoyBzkqKxz+Ilo4rP0dWQAEsehXUp9kqzRGeKKFmzyR3aKF3fy4OMkk5862brWOjSlGlKNKUaUo9fy/AfPOlKYGe4Hxz8gdKUtKUwM9wPjn5A6UpaUq8eHyPNvi1GeYJ9orkKLzE4A9sK4e57AmQAd84OBknXWazapfaXqFm+0i6s7m2CsSFZpoXjXcR0wTkHB58qskxgZZhnMTxycAFvYkRzjIIzhTgnitbX0ktvt3fwZhWpW7gpVrVy0uF3GClWhJqTzcCqivxrmiKcft5cqnVJUurewS/a2qEY8NNWjQHXPrmlSoEZTurPod7TR3mgzdmr23V77sjqs1jJbMSUOmrPLEjb2dSVMsc4fODlQFwCufZO0to9n2hGtWFzIkGsjTLl5o2J7uaa2STB5ZGSIbZGQAgEsSD4eF28bkl2vetUbrFz3VLrttTJlErFRp0uGqXV6zTJM5n60otRnUBtNNguSeR91m5qZV68+0JQmTp8iWDB2vtLKxnitZ7WygjiuYIZ9s/dpNaiRFLRbAGWNyQFCQvjKhyo3MaxbVO0OrxT3MVxrVxPNbTtHA1v3jQTQ5YIHwVAAcNu3ow3ZIb7orex9E01NubibwdodWuJ+4ao3b3FKTXCy9S5kZdl1K3rklVuDIfpKoNWtyOGJS3EMXG3U1XQqc69BapbtLZK/FvSDbx/ZfbC2WIW9rNp8iyyFZVkaWO2C7Y+8eWG7EluAJjZ7IrMqiz940wZMw9bu1+w7t5BPOkluLWUOk0bMxUK+AFlg7iQlg1yn+NhCqKDg7wPo+2PaLP443Kp12Su5PEHerjUl5PKtyn0qLTafT2kgqJDMVoKjoTuSWyskle0egWJIuxQkghjghdbN44xkvlrfe5kJOMnvFwEAAXGRnJrJv4l5Hj7Q9kNOfg2fY6zcqNu3fc3EjMwwBnJjIyAB9Cc/te6VrZRpSjSlGlKNKVk6fCfxFAz9a2sT6Jlz1J+8/V+c/D3a7EaXdHr3a/Fsn44AyR8Pf5V8fr9t+P9P70h4UOI2N6na+e3+KqOPv/wAuzq/2Tcfjj/8AYOP9Bp6/bfj/AE/vQfChxGH/AHS1yf8Ayqhjr7qeT094+HrA0q5IOWjHzZh/4qfy4p6/bfj/AE/vQPChxGxvU7Xz2/xVRx9/+XZ1P2Tcfjj/APYOP9Bp6/bfj/T+9P8ARQ4ijrVLYPuTKn/d/wBAf5j4esDSrk9WjH/6Zvqqn8qev234/wBP71NW94YeIFGr9CrK6tbCm6TWaZUnm25c8PLZgTWJLrbYVTwnzHG2lJRzKQkqIClJTlQo+l3IDEqjKvP3sZHPTcBzgHg9fIjrxvfwsrKilyVI5K4yeAeGJ4OPDr55ArEnxwcH0Xzec7hw7cE+w6hxJTcLNgcRKchL8607kn0JqNISplS2TNpNXYrEujXBS0OMGbR5khuNIYltx30fnfqJufRp/EBFcEEdmu219DpOovIpEXfX5F7bmOVSO5aO/KguUCssroxCgVsFosEfab0cXM0MhfUezcMUt1DGM74hK8YYDGQixqQTlGG0gHHXxBeJzw639wI458SOHF1cFrWnUFEyNMqFv23cAf4d1lctbkeHcUefWGYFwtIblzpdYiMVFSCxMqbtKREjRKZCCNlbL0hdkJLc2svai5tNX0+7ubIPLYSDUE9Tl3yWsMEaG07qSOJIVlTKBIxKo7xmLZV2b9G/azXtPttU0/szY6ppeoEB1a+sYbdptzQPLcMX9ZikgbMwDpmXfhcoGI2t/RP8MadatPq19vCA3etN4W3lJrjUJyZLhUuz6TaDFuR6dS1zCXH6ncVZiU2oXRVSiOzO+paVFhw2I8R5yV4D2/8ASTe9r+0mqaLpNtcwaL2e0TX9TW9v5D6zqtxeWa2kNvJBGojhs7drtmsomaS4Q75GwZNqZXrHo8m7H6Zph1Z7eXUdb1Ds5pEMNipa1tJIL0zXUgkfbJJJ3McYuHUd0XIESpGCo3V/Ra8Arv4keE2l33R51AhwLl4ncWZTSKjJlomO+y3c/DcdUGYjzZaUpADaubPIjACemtovQt2ent+wunKAArBU2ygiUm2tLSBmZVBYB3RmO5V6rwAcV5Z/E1q9s3pQnsxljpmg6HaNJu3FybZpM4JAUYYdMe1ng5zWxQ+E/iF2rNqH/wBmpj/87Xq32RdfiP8ArQfrWvn2jBj+bPl7I8/Et7vrT/RP4hfxm1Ov7xU+mOv7O9dvz0+yLv8AEf8AWlW+0LfzPX/L0x1+958fWl+ihxD/AIxanT95qfXPT9nem/5afZF3+I/60qPtCD39PNOuen3vLn6U/wBE/iF/GbU6/vFT6Y6/s712/PT7Iu/xH/WlT9oW/mev+Xpjr97z4+tIeE/iH/GbUG37zU+vp+zvz0+yLr8R/wBaVA1CD39PEr1z04bPTn6Vnz9bAHBQAT0G5J/DPv292smYsDwOPn+/l/evgZFHO4gePsFvHzDD8sVyFWZ6KHKd85yB17ZP/Hf01bJwOOfEDw/PH5VVh7I2MC2edyleMHOASMc4x7R4+j+tmADlSM52GSDjHXfb3bE/lqM+Qz+Xu6nJHj/tVdkpZgpjIHI6k7fP72OvwJ8qq/WkTOPMSPipA+G3MTvv29/cak58B9cD+p+lNk3+T6//AFVdMyMsEpdQrGNgpJJzjoAcnr/Q30yM48fLB+NX2NjO0j8v6E5+VVHFIW05hQIKcEjCsDY5xvnGx/njXHOT3Mu0kHu3xgfhGfHjBxg+48VxFgHVTxltrcE44yMHBHz5FalfpDqvSVcNbW4ixai3HkUO4VVSn1MymWlMpiU2T7UlalLQYwbS0txwuFsjyklWDyg/mj/E4sGq2OjzaWLiTVX1yOBFiVzPGwtpEgMYG6QSxyRnhSGXgjnmttf4dbK9btBregTQFornRWXUEniURmOSdM+3JtUq3eqQxOMvlQRnHnK+kfqlN4rcKOCfiApcuDLn1upGw68Y7kR329ds1uo3AiWHWHV+c2SHFuBWUJjhJyGylJwfslqV1fjSU1QPDrUGka3aayZwyTtfG5VILidWALS3FvO7lim9Xb2s7yBtR6NNF1Lsvr3ansfLCosIZLHV9MmDb40gubZUaMOoMXDqA3duVBUdG5peA+7qDTqBxcgUqQt2s1LglesKPT0SIbknMaBMrklyM0t0SC6nzlKOW/JSWkJWQTynggj1m01nWHuLCe4tNU0a8sTcpDKEkkEljFEZD3aqF2RuPZ3MQjEDGCa+lOwlvpuyY72GKOy7WabPO4lR2iRnCBpFHAQEYOPayVPAyD6ePokqJGs76Pfw7Q1/3BqtFua6Sh5wF0m47urUznWSf1lpbRkDZJHKnbBP6ZejJHXsXo8rKQ0wunIOdxxO0WCSBnaIcDA5XZ1IJrQf0+3BufS/2yVS8q2VxZWW7bhVMFnGrIMgcKw4wSSS2eNuNiTlfp6FACQ2SNlDIJzvlIweo+BHXHbOf56efHu8fLP+/wA+K8f2uFGdu4gE84Gc88E58OPl8K+Y3ND35SCM7ZChn+vw9+qlm5wMjOB4/pVwEIBZiCQeOCc5IwcA4zjPwxXAXRHVslhwnOOo3+B3/rbqNRuf8Pu6H9c4qSi4yDkYyD4EfkD4Yrkmth0qLaXeu+UpwM9kjqAOhOTvnQZBJIOT5D+3FUXugpO/hmyeDwwyMABSennx765irPr2CEpz655vuwMY9c41cHPmPiAM9P8Aj51cRx4ChtwAIwfHnPOVHn4YFcXIa0j7JS4nYjA3yTjHTt3JIHfbUAhgTzjPvz4Hw5qvfRMwTdnd4848Tgnr4eXlXxuMEZB50nO+2B32B1I+fzwcfMf3NWwrKCoA9/PPx5Pj+VRz8BK8lJXuc7YIyNsb5PQ/1gafvHX5+eamNBEmByce0x5JHlk/n0HPuqEejOtHJ5gcZBG+Mk42B33GwPvwRvqfl+n96qJ4j1bHuPUckfDw8/EVCOyqlFPOHCBzEBY5hygjbIB3ydtyQeUDAO+qgZ65yPHjPj5ZGOv7FcMsskT7chwyZ5GMEMRnO0Z48PDPxr5lXhNpZCn5RDXMkErzyjmKUkkHIKfUYxjONzpjHAP3shsgZZTwwxjoR16efjmrxO8vtHaAhJ6YYnBGMkAY8c55xjPhXiF8RXFq76xaN12vSKvdcqk2fxd4tsotu3ZYq0W9avbHEe4GplAqEV1TkmA9AipYQl1ny2jyRm3W3ksNk6J32gpp13cWjPCrxavqJgmv4m3aek9xIVuYG27A5UsvsYVMM4YAGv1A7PPptxDY6rGkbd72d0Dc1okRlnMWlwiSCUYyV7xWz3vBkwTnAI0dcQOM/EeoSY7Ext+ivV+rqq1t0iNd1Rp9Hgz5M9EWWh+jpKIbtYkJ8lqR7XHBZY51KCUrITnWh9ltESO4nmSLUZmt1imu57GGWVohCSGjnIMhiyqyl0J3uqk7ua6LtZ2m1RbvTokUaaAyQoi3jJI4M64hnaMIUYbciNwEBJIxnJyk8I9Tvu3ot0w7jm1xhNuTavX03JTUmdDkSp9ImNKtyp1hsMpMSQh1ZlqB/uWQ6lX+oFHpdeNq95atYlSskMVu9jsO0KrMfWYoVBVd5wwfCkkEY8K7ixUHTng1F5ZZmmW5inmmWTcTKgdBJgb1jcA7sLhuFJGc++/wjsP0Xw1cArdjrDUen8JbKCWm1AJQZ1JaqjqAEJA5S7PeKcAbHc5zrabsZC9t2W0G2YnamnQEb/8AuZfe+DgDruLc5JBGc+H57ekS9k1Dt32xvGP+Jca9fhGD7wkccndIMksCAsYP8xySAcdMposR2ThSVcoJwSVKJ2HN0yeu2T92snPHTqSPn+wKwpd0uAw3FVGXBO3gknjg+PPGORnIq5Y1OdACEhZ5fUnt1IzjfsOx2wCc6jxOcj3nAGM+4/rn64q5CL7KKWkH3gCcgdfFsYB2g4A681OsU1Ixz85UDn1z07e47DbBxk+mpx195z/x+8+Oc81ZRIykZCj7o2+A64yV8ckHrxUq1D/2obWkAZGEjG5xt3JJ935aY56k+PPhnyOP69K5QqBQBtJHUH7wzzzk+8eHT519qITigeccuOoRuQBjfCsdMgY7dMbaEHwP78fDP5GuNZosFkRmwed3H1Bzjz4/ri4gMDGcnuT31NUwB0AFUnW2lJUV4A6qVsSPxBxseo3Hw20rjcg8bmXBwdoJ5x06Hjkf84IiZfsDQBK0J25s5SdupwME5GxJxkgnrvp4/n/T+9c8fejCuWZVHDOCHz5eGR45x5jPAFWjUZ7SUr9nWF7DBWkAdOnNk9+wwCTqDxzyev16/kOg+HjirOgZX65K4A48x9eKsKoz6g4FthghIIC+THNjHKMKyFEb52679SMaZ/UeGOvxI8/9s8V8Ilk3gHKrkBlAJGME5PX3cjg4Hy60rsCbLAKlOKbKklbTnMfsBQJRzAncJHp3OcYCtM9Pf+/PHy6/XHKXUDnIzkBiPZYnPTqR45zXhh8eHhg8S/BHifxsug8JOOln2rL43cYb6tDidwwoE68rXuOn35VxcdAqspNETVUUtK/a3aTVWanGp62JEcuBC1IHP5Rq3ZS+klunEFpqUVzPIwtdQgDPDEJXIMc0a8h14Xc4bYF8ea2W7P8ApH0qSz0a2llvbOewsIla50yYBpZoYY1Xv7Zgdw3ps9pGKMGMZGSRoFv/AIkWrTq9KZp9sXPHXU6af7Urumj1Co1ORcqpCnJUyE9KIepz8halOvvMoaPnlCkMo5QkfPbdltXEaCeeDMUpNvFbOttFHAQSIpVUkSNHwo3E5UZJrt9Q7f6BLKSkN/vlXdcz3cE08k8rMCXRS4EZ8CQBxtUYyc5R8D08WOKMyDw28M3B7j/xXol0U6THrVn0q37lcor9wzYS4CZ86qmEmNCQy+tuTJfkVaHBdbjBx0rCFrP12nYi5u+8u9STT472VmSK6ijWSaOAHCq2xUCgj2hjJyDkY4rptX9KGnwNb2WkNq0umqEa9guJWhgeTKs2xZHLYBUbwrYyTgBvaP6Rnhv4aXjw84Q8KbSuFT6KranDPh9bVRivSRIRFqNAtGi0mosB5LixJDM2I+37QFqS9y+alS8516VZQerWdpbkh+5t4oywBwWjRUJGfPBPxJxxxWvWr38d9qupXhaRxd311cAk5ysszMCx5O88NnPOT8BlRBk1BgBJcTjYBIBVkcuD9kpwB6EHP6vYgn6vyOfqK64KUBCu4U8ngcdPdk+R4zjPj0vmBVUJCPOQskpGCTy4UCeb7h2BJIzv7nxz8/ceD0xn3ce/oK+iJYwFKDnO/GD15XBzjjx55BwOlXlBqNOcJCMNrA9xJUTgDfAwRnpnpn3aE8/UnPGB7v18uCfKonEvBjcqCNuBjJOecZPXafHA6jnpU+04xlPlqB5xsQR9onfBCQN8DrgAdOp3A56dDnn4cflx1z8q4u7ER3kk7gBnGcnAP8o92M9OOtfTqauGDdPDzBH6gVCPVDP6gUoA5yNs+7GEk4yc79MaqQSOnPx6c9ePLz6+dcuxVHOWx485+WcY469PGoxch9ajj7KeoSknlGw2HMB39cnYZzoAQBkknz5P9P6dfjzV349hQDuzhhkdD5buenkP0qOejuOnmUslQOBn9UA4J2Gd+YdfTbrnMj5/PP8AX9PpVd8g+7hhjPtlyfzIPHkM+JOK+P6rJ25vU7+/r1T1P9baY95+n9qjfN/k/wDL/wCa4GlemPhyAn/5GoIPxx5gZ+XIFQHlOSY0BJ/mBBP5Dp+/CmLfQ6RzNFwE4IKEjqDk5IGT2z3/AAGnXk/DnHQnx6Dn3Z8OtGVmUFkibJyOW6Y9wAHjnrnrnwqsxZ8JaSPZWEZ/1cp+zsc4UBgKOd8kKOcYO5xPIGB5ccDPQDk+fUccY65qi4X7jgIeJGUuHHvBBDE5x1bAGeM81AvcCuGNRkqn1KxrMnTFnmMmVaduzHyvOS77RLpj0grJ3Lhc5yQCTsNVMaNy0aE9SSidfgFA+g48jXOJJABtuLhlAwoMr7QM549okZOfzPj0uFiwqXTmBFp0GDEjIwG2IkRiIylIGOVLUVDLbYOAMJTjG3LjA1IGwYQADy+hAyCOR4nNUf2jukdzjruYsvj94MSPHHAJ8OlU3bWjskFUUZyCC30923NtuO4B2x0xqf8Aj4ce4D99MVRYYX4TuyRk4L7R15PtYB5PzqgaMhsFIylRyccgTk596duvT3Z1GD0/ZHiMYxjyHPT51cFg5JWMr/KPa4+I6e4cnA94pppWw6fHCfX3AnTHHUj3cHGOngf61AeUeCZ56Bunx2eX1qsmnKTkhWe2+fUHYAA9hv7tT7iSc+YGPoMfWhaRvZfaVPXG7I+BCjB486kY4fYQlKVq26Zxgb9BnB+BO40OOnPGPA/093H7xU7mUBVAIAxhgxAHXggHn9cnJqRbnPpJJB3wCQcHAzvg9+nuIGMagjIOOD8x+fnXLuTrtzj3Y8Rnofd++tfUactI25ldtg3ke/cnb5j36t+/3+/96ifnmJseRxg/r+lNNNJAJUtJxkhSU+oGBykgnG/YfhjUc/sf7j9+FO9LE4jKAfi8T7sY4/SqrdOQMhfMrOSlQIHL6BSTnvvkZz09dP3wP+cfOqPLKCNqKwxz19/vHuz8fnVdFOjgDKVZxvkg5PruD2x2GNMD4/H+x6ePh4+VC0jhWJMbYwVAGB7uc/nnJ8egxVTDYTjCcY6HCc59QeXIPwxpg+Y+Yz/UVx9220qZHKnqDg5+n7+FVfJTzcwJx3Tty/yB/EnfU1KRBCSCTxjy8Qf6VV0rko0pRpSjSlUlstryVIBJGMkZ/nt30qCMgjJGfEdR8P38jVEwmFK5lAn0ACQB6HZI3A75Goxnr0/Ln45/fnVQrAr/AIjEKcgHH69c89c5qi7T2eVxaEkrCVrQgrKUFQSSlJKW3FJSSMEpbcUAcpbWQEmpXnPXHRQOTzx55OT4Dk8Y5r6FkO4KzhELKHOAQFyATgsvIHTLKM4yQM1hfB45cWKdRKsu6uC1cer7Ei4kU9yg0atwqA2iI86i3hPaemXPWJUefHcpc2fU4CmvJZqjKPqmE/EqjVPxxNY1JIpBcaZI04a4EZgimWH2M9xuLNNIyOhjkkljVSocBYSyyBNhrv0Vdg7vU9POh+kbTINIeDR3votV1PTbvVWaZQdbNncR2uh6XBPZyxX8FlYXQk75rB5Wvp4LrT5bzufhbxPpXFKg21XabRLlpbd0U2dU4Yn0aZ7HEap0uVT5cSfVlRmYUeopn0+oMNROZQkJipeYccTIaCuz0/Uo9QhgmjhnRZ43kBaNtiBHMTLI5VAsneLIhXBClM5IYZ847cdgtQ7DaprWnXeoaNqB0S8tLOf1XUbX1q4N/DFdWtxa6f3slxNZtZXNpctOPajW4CyxJ3bkf//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAAHAQEBAAAAAAAAAAAAAAMEBQYHCAkKAgH/xABBEAABBAEDAgIFCAcHBQEAAAABAgMEBREABiEHMRJBCBMiUWEUFRhVcYGV1iMyQlKRobEJFiRiksHRgoWi4ePi/8QAHAEBAAICAwEAAAAAAAAAAAAAAAYHAQUDBAgC/8QAPREAAgEDAwMBBAkBCAAHAAAAAQIDAAQRBRIhBhMxQRQiUVIVI2FxgZGT09QyByQzQqHB8PE0U3KCkrHR/9oADAMBAAIRAxEAPwD0Aarepx/z/n2fAeB4FNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pWo/pV+mr0K9EKmrpHVjc7ldf7lg2T+0NvQqTcF7MuH4DkWN/iG9v1do7XQ1S5rDaX5LaHJYamIrWpsmK6ynI27k3sI0Ziu9iBlhs91QSoZvfUtllVAQzsoINdu0sbq+Zltomk2EByqSPt3AkDbEkkjMQrEIiM5AJCkAkebnq5/aj9ZeqPpH7f6pdGLTqa30xrW+nW6oXTa6fl7cpq9yA08JlcIG1tzWke2b3aBYonWNuy/GmtTJEB6K1ComLN3qzaTHd39ncJe6lEbBmeS3jnSK2ui6WzPBdQQNOZZBt2wYMJVZJN4ljZg1j6ctno/T2q2VzY6FqQ1btxe3y6XdTatYKss6xXFpdXcFtBYxGOVmumKXgWSOBBNHJgDq96F39rrsfrTat7E9IaHSdDt42VP/eDZ9xuC1j1FBuijEt9pEi2es3GIe2rGZFMOVXtpm2FPN/x8VFq1NjRo07s9u4jUrMv94GXaMRtCjRPJthkhV5J22uG29szzMpTJcl9qxjW+nUtdl5o8jX+lzOkCOkq3M0N0tvHLc28jRwWzSdln5la0tl5KbSY2duy8OZDsYcWwr5UadAnxmJkGbDfakxJkOU0l+NKiyWVLZkRpDK0PMPtLW060tLjalIUCflXV/wCkgjAOR4wRkEHwQR8KizKyMyOrI6MVdGBVlZTgqykAqwIIIIBB4NTOvqvmmlKaUppSmlKaUppSmlKaUppSsZdd9xdTNg9HrPfPSHplYdat8ov4u3ofT6glxE3EKNPrJ8gbwl1j0yFPuqWtnswor9PSuIsJ3yh4rsKaLHdsm+Rox7O83anucO0bQWqLLPGOy8i3DQh1lmjDrHEkUALzTSLEWhUmVe1p0dtdX6Wt3dR2MRjWVZ527Uc8ntEUYtI52VooZWRnlaab3IYo2k7c5Ahbxd+mL0s9JXeMFy26w7U6jbRuI+5JMKuj7mZvq6s2fTsWt5IgRW0W9ZXIiVFHs6Q5IetayzXKu9yQpU/cSJMwMep5I7qExi3nRo5IpGS3t5A+BA4LxiV5YGmRooJA7SPKzT3MrmUPMwDWG8YZZJtOmiWC4jM11eo8JBuYMhmhhhvkt3Mt39XOIrci208DsukSv28BU/TXZlL026pdLt1t723SzHvpCekXWvpk9bbj2ruC829ZW6WGk7T3JT7HZ3JsjdESLdyo+6odlT2m2k+thTKxpFhKrXOSXUbKBGjuLmKGOF3Mbl441V2CoHYyyLne0iLCXSMkuFQOw93Vx2Gp3k0csVsZZryGM3UTmWU7HG6NE9mt5XtzHGA9zHbyXC7FJmWOPAfCNb0Z6t7lS1Il7Q3E5MhuVFJPnVNS226xYFiNVQZ+6ItpVrtVvMR2vlE6KiXXvOPT2pzs9JbjCZ101exCMpYvHPAJrcKqvFcqI2KKiMrpPNNCHysUm59jYUBJGPck0i8EsLqYFuUvmtpIo55Irq2klZUaWSaAoYLS2njQRSyWqpCryO8jgoB6PP7GLafprUvVduq3fsPqDtvodd0Kqbc24+q1ZuClqo8LbdNZzNjP0821om470+ndlCqW9XzW6+ZQzUQGEy5VdV19dq4LIxX/AHdPtMRatOtxqUoV4bS3lS3MTXitITEisYIoZoopJJWZVZYQ5kz89Qahp95ockerXpk1bQoBa6CUlS4uLu0a9WaWyuuUnuHjS4uZre4MWEx2ZH2lSvpAPBPn8R21sPUjjgkcEEcfaMg/hVeU0pTSlNKU0pTSlNKU0pTSlNKVjbqxX19ls2WxYMF1KJUZ6I6hxbT8OYA623LjOoILchptx0NrOUgqJUk4BGm1+7ltNLuWiYqJAscgAyHjDrIUYblJVmRcqDk4A++SdKW6XOsxI67tsE7rggHgKDgkHBweDwQfeB3AVo3aR93UcvcW69u9S+o1PuK8pRTevj7vvF00B1qFBixbODttE9iqYlx3YDMpXqGmfXuvTErUEylgV2/U+rR2FvaC6mS1tLn2hVgllgnb35JDC9wkneMRWQptMhAG1vK4Nrp03pctzNcPaW8k89v2GaeGCWJWZVEc3YdBF3MorEgKGOQdoateG99elNse32k5Y9V9/wDWmPZT7Wit4yWdtUHzKLOQqbQboS9LdXIQ1SMNyKez9ZNs0TlS4M5FW26iS3J47rq4ajPdo1/faEyLb3cLtqusXvtBhXFxason2u9wziaEBYXVUaMzkKrAOljp0VqyWFlqyFpra4jGmaTaiITMHguhiH3RAAyTNukVg6S9oOhLdF+ne4t4Rq6DCuOpu6pUXblDFl38y3u5cA3an0rhu2NzZ15gw2g4GLCa/CroNdCRMXFK241U2ILmNL6h1e5mmmN5ef3iWRLaGO7uXS1UDcEhtnndmJVotkkzSMQr7PrGDJrtW0HSrZYU9ms8xKjTTPZWqvcsziP664SJUUErKzRIqJvMbZCgrUH0eNiLo0zb9e898boq7tl2/wBt1m+tzObusdsf3jlyLK0gx9wfOFi3Y15jPVUKA03LmxYaK2RMi2E523mzJMr03V5tT1meK4iiN3bs0U88cbRe0raxduMtFIPq23PM8q7U3uyEqvZVai+uadDY6LFJbFhbusfat2ZHELXUxldzIn+IqII4olVyqIHK7zIWO0epvVe00pTSlNKU0pTSlNKU0pTSlNKVY3Udn1u0bLjPqlRne2cYfQjPnz7eBwe/bWh6jQvpc4AJI2sMec71Ucf+41JekpO3rtsScB454zyV5MTMACCMZK7ec/1YA9RpTuBvxQHgewUSfLIB48/PnGNU/cj6iQkeHcLyf6cFScZIAOB5APjPJq9rMKZ0DZxtbI9CTkDPr6jwR9tY6hRfWW8JK8HwrScHJSMFI4HIGQc5xwScdydRW8U+1KcA5CgAjIwozkjIzgknB+HrxUniAEEvwC45IPjPBLnB4I8n7ua3Y2tXxvmpbUiOzJZfQ0pxh5tDrS/UrS4wVocBQv1braXE+IEJWhKgMjW9s5JIkDIzIxQ+9lVbBjKkEjgAjIPoQcEGodeIlxKQ6n3ZA7KwGAQ7OpCkNn3gDyeDgjjgX/tFlphxTEdptlhhj1TTLLaGmmWW/A22022hIQhptISlCUJSlIASkAJxqb9F5fVJGJy3YmkdmZmd3YoNxJJyfebcTksTnOQcwjrgqmlIg2ruuIFVQMcKJThQMAYCj7AOMeKv3VqVUtNKU0pTSlNKU0pTSlNKU0pTSlWzvJgyNr3LQ5PyT1g792nW3fLngIJ+OMeetXrUYk0y8GCSItwx591lb7vA5JyAOT4rddOuI9asHP8A5rL/APON1Hw8Eg/bjHrWllzHUqJIHhyoLyTk8c5GewAJBKVHuOeQMGl7kMkLHB5Z2zxgYJ2+nOc58/Zir7tWAkTcQGKg5yAQcAk8e948hQc+DgVY1bEKbZhRCs+uCiCCfCAtJxkntjHIAH+nUSnDCUBlzsk87s43sfxJB2k+RngHGTUpVv7u8YUbymMgBRuABAIyfQjHJH3Vubt1pxdalSUnCY6Mq7A4QfaznyPwwOceepBbrmAnaSVQAcEgHw2BjDYyPjUUuCEnZSOGJwficn05x/lHP3/dee1WyDIcI/Z8BPxLmcY8v1SePhnntPeho/7zcy4OBD2wc595mVsAEYA2oclDyeGHiq668lza2cWcFrl2xkEFYoyuRgjPMo4w3xBGDm8tWZVY00pTSlNKU0pTSlNKU0pTSlNKVTLpAcp7VKuR83TCR7/Cwsj+YGunqADWN2Dgg28o5Gf8p9K72mMV1GxZTgi7t8c45Mqgc5HnOPNc4ur+/du9Itmbj3zuZ9xqvhj1cWNEjJn2lrbP/JoVTUVsX2X506zLAShguhltTkibOdYjxXZTVW2mnXGs3cen2wjaWRyWkchIYkUMZJpGG5UiiJy5VSxACIrsyobuvr6DSLWW/uiyRRcBQFeSVyw7cSopG95No2gkKDlnKgMRoG96YfUT+/cOlj9O9rbceW7ElVtPvTd0mj3JZsWZqUQkRq2fUVVnYzVw7tcmRG2tR7xDTEeJNqhdwpDs2Ps26K0l7Z7sandXSAzLLPp1kk1qhgMrPvmSaSKBN0KhTeXVkGZ9lx7O4CNHz19qq3Ih+jbaAN2jFFeXpjuHM2xUKRmBHdtsmD2YrnDAFO4roB1N9HDr031LrG6K82zO2LvRVSq2TSWjrkyDe00d+MiXdbSuFQ6pVvWtN2NNJImVVTYsRbeAuTXIDhXrUXehppqSTQXi39mziHvRxpFJbzOmezdwLJKI5VaOVGMcskLSRSBJThS20sddOqTCJ7U2l0N0pgkYESohIaWCUiJ5I1LIffiSRRIpaMKcDcOia9VHcGe5Qf4+LIz5ngEjtk8alfRkSrBcMMqcwjbjC8pIT6Z9c48HKsM5GIV1xMXns48gKonfbnJywi5PwB3ecAsRyTjArmpvUEppSmlKaUppSmlKaUppSmlKaUqUno9bAnNYJ9bDkt4Hf22Vge/36692u+2nTkF4nUEYyCwwDzxwTnB8+MjzXPav27q2kJwI7iCQnxgJKrZ8j4epA+PFcdfTG2wd17c2FW2FjEraKw3JcxrGwnXEOhiQpCtn3khouzZ7MuCDOpYW4aINzYE6I+m4XGfYbD5lR6+6YvBaS6hcRxs8y20bxJFA9w7A3tuhEcaukheOWSG43LLEwWBsMc9trb6vtzc21jGXWKJ7qRHkkmEMas9rPs3MyyLhwrxe9FKMSEFOdy+e7qLcbrY6nbUt929VJEzd2w5W3retv4MIPyWad9mu3btlqiVUsphm7q4s4RF01u7VVVG63Go49qqBEe+S3tpdnpUmnSx2uktBZaj7Tb3cJ2od4Y2l27CWUM6Susjd6PLzFe8ULuGNIX81+b5ZbnUUlurPsy21wpcttdfaIkDxxnDorbArBURNqIVjwB2y9A+buu1mdIbbclnDsr2duW9dgWEGloi7O29K6fybFxu/uK4vbgZsYtXIkeIbq+T1r7sqNV7UdlvVVss1b1ZFZwjWYLOEw2yW1vFIkst17ky34hzbwyE2xieUIQlq0kqndNcgB7bbYfSz3Mtzpcs0qvM0tw4kEUbFo5LEyMZJEHeDdtlGbhe2SyxwPlGNd5a9JDBJGMqAH3AHv7vb959+fdw9JrssZck5a4KqCpB+riTP57s84+zNcHWTq2oQqCpKQMW2+AWmfAzubJwufQ4x5GKn9SuohTSlNKU0pTSlbRfRK6j/AF1sn8Svfy3rafRF36PbfjJKD+OIGH+p/wBq6Xt0XyS/lH+5T6JXUf662T+JXv5b0+h7v57X9Sb+NT26L5Jfyj/cp9ErqP8AXWyfxK9/Len0Pd/Pa/qTfxqe3RfJL+Uf7lPoldR/rrZP4le/lvT6Hu/ntf1Jv41Pbovkl/KP9yn0Suo/11sn8Svfy3p9D3fz2v6k38ant0XyS/lH+5X4fRK6jEEG52SQQQR843vIIwRztvHPbnXy+jXbKy9y2XIIyJJsjPqM2xHHnkEVkX8QIOybIORjYDkeCCJMgg81xv6rdO4+8KG82XYuu18mLPZkV1rCQyudR7i2/ZNz6a7rUyWnI65NXbQmJSGZTDsWa2hyFNYfhSZMdzz9FqM2n3zPsWXtGa2nhYssU0D9yG4tpApP1ckbumUIZcrIjB0Rl9ITWtvqVgkUruonjimSWMhnt5l2z28yF0YM8UgR1BBTcu1lK5WuO0r0U+rO0eoDTrfQmj6mUlmiPD3q9T7n2pEqOorDF1UWDy5jW6X6fcuzpVu3BgvSo0Ce9XVD9G8iPZXTe5dwIs7DPV+kXlmFfqG60yeA9ywWezu2m0o9iaNFhNmJrW+SB3cRvNFHNKLgOY4DaWwjr9ujdYtrvdHpFvqMUqqt1JBc2YhvkV42LyR3JjuLWSVVRpUjkkSN4sq0pnk39XfRD9Hp7pjGjbp3NT09FuJFE1tag2rSXd3uKt2nt75a7JSJNzdy5Jstzvw01NJPnVzESBHp9vVlZCVMT8rnTIdrHUo1WRbO2nnuLdrkXVzd3NvbwS3U4CIe3FAi9q2DdyZVkZpXmleWQISI1lOk9OvpKLcXKRJcGHsRW8MrzR2luCze+8jjvTuFjV5ECRiOJEQuCWbsJ066Aby6g7Xi7lpbHbcSvkyJcdpu0m2jMouRHAy8stxaea0EFwKCVB8qPhPiSkjmzOk9Nnn0eKeNodkkso5ZlYlCY2YKkbJgFApO5WOM7SOaqzq68RNaliZZCY4Yh7u0jDbn43MuP6jnj8fQXz9ErqP9dbJ/Er38t6kv0Pd/Pa/qTfxqjHt0XyS/lH+5T6JXUf662T+JXv5b0+h7v57X9Sb+NT26L5Jfyj/cp9ErqP8AXWyfxK9/Len0Pd/Pa/qTfxqe3RfJL+Uf7lPoldR/rrZP4le/lvT6Hu/ntf1Jv41Pbovkl/KP9yn0Suo/11sk/wDcr3/fben0Pd/Pa/qTfxqe3RfJL+Uf7lb7G1A7pA+1P/01JK1lRBasHOcJx+8sD+iTpSnztFzgrQD5e2OeM/ujtpSoybKIo49aB8VFIHbP7xP8AdKVMJksLOEuoP34Hn5nA8tKVFBBGQQQexByP4jSlee/qXVNwOom/wCvU14RD3puqHgeIACPeT2BgZxx4Bg47jI9+vKWtR9nV9Ui9I9QvFGPGBcSBRx8Bgf7nzXqDR5u9o+lSDkSabYsSVG4k20RJJxu5OT+OPHFY/Zp2C8FY4CskYA47dx8SCAc8fZg6J4gxKjyfB+AB3AYyBwCRn8a3Ud08edgIBI8kMcD0yyknkk/jjwBV+VyPk6WmwAPEvnB8seEY8WewJ8wTn38657aNYnDHIOMZBPn48ZI5HGCMZ+yuO5leQnuABSMkZBKrtIJBXGckfAkenxrs16OIj1nRfZiHnEtuPs201zxHClGXe2jzRIwOSwWh9w16c6Ni7XTmmZGGeOWRuMcvcSsM5AJ4IwSM4wPSvNvV7iTqPUyPCyRRjGMDtwRKfHA5ByOOckgEkDMa72vTkB5KiO4yP5EeIH7vdjUnqNEhQSTgD/r0qTc3LCT+qQD7lc57djlOMA+YOeO2lZBB5FfA3IyTgN5J8sf/vSlRhdFweJCTjtwEjB4z+t/yfhpSvr50cPACgfeUoIH24A/rpSj1a6nJbw4nHb9r7PLPv7fDvpSqatopOFJUg/Zj+oI7aUqRfhIcyQSCTnIOR4s8kg5POSODgd8aUqkPRH2wTklIPKgScD3nByBn7Cfd30r5IzkkZ+A8Y+PNUV9+yj8tuqKUgEYB8Y95wDg475A4zx2OFcW5xht6mPHLbcEHJGCPvx4B4POPNSEjek+pbL78gBlAySrlIxnjBOTwOfLJA8hpXwHl2ltwwADyBk5baMYGPIOc/DjzXI7qxNj2fU7fc1h1DiJ+5bSepSMAKVYPqmuKxnI8S31Hgjv5dteYOrIhD1JrSL4N/NJjAB+uPe8egO/K58jB5r050tJ3enNGc4/8BDHnJJJiAiOMEgY2EYPgcYBGBj9tsIJwcZVnBIJ+wfw+37dRwqCckf6mt+Rg44/Agj8xkVXomPG0SeEgYPvzwBjv3PJPHkca5ov8RP/AFDzzWZiBnYxbCABsYG4AjgEZHp5JHP2V086Zy5iNmbVgoeCWmaKtV4Qo5b9dHQ8pOAcBXicORwQcggnOvUugRmPRNKRgQfYbd2yCDmSNZDwQCMlsjgcfZXlzqORJdZ1WQkljf3KLycZhmMTerZHucZI/wBqyxFgvveEqUvwkZ7kqV7v1TgA8ZxjzwB3G3rTqhdQBgLg+95LHPAC+mOfUZx61ckWtWEgAEAHJJ7nPBwTjJAGM8ngZyTpXOqhBgfHJ+//AFqtMQW2+SPEfeofDB9nOP4/b30rIAUYAwB/361Umoq1YDbSjjt7PvyeM/fnGlZqoN1jysFZCAfIckd+/u8vI9+caUqvaUr4WlBB9YElOMEqAwAeO57ZzjSlUmUmubBUpXqzjujgJwB3BwOffzznPu0pVqT5zSAoMKCyPEP0ieMHuDjOR2HIAOMk99KwT5xyQPHjn0Gftqw7GdYLSoJYPh8i32IAyT4u5GO+B7hg+aumXZuGYY+7n4+nkeMeD5yPBOL76usJyHkqU54ClQDbwJSQQQPaGMDAwPZPJ7nHKuaQhx7rZI9MHnJHqcYxgn7a51dYukfUeq3TZbi27QSL6msfk8hbNX4Xp0J1qO0y+h2CVpffQ4tovoXEQ/w4UrSghJVS/W/R2sXeq3Wq6ZbC8iugjtHGYxLFJHAkbBkZo94Yxl0KZwW2kADNXT0R1holpo1po+p3JsZrYyxrNOrGCWNriSZGEiAiMqJBGVk2ZZQVJDYXCAk7ojvhiftDdsR1SgktSNs3rbgOcHHjgjI7e0MjkZOCNV1L091FGwR9G1EZwcLbSlWPPOV3g4zjBxjz68T6PW+npEDpr2mFSAcm5iX0ycB5FYgeM4wSCByDWW9rbP3zuFyM3X7WuG0rWj1kmxhP1zTLZPC1JmIZecBHYMtPKwPEU4IJ3uj9G9RXkiGbTpbSAspklu8Qe6GHvIrESNgk8LG27DDIIONDrPWXT9jEwXU4byb/ACRWRafJUFV3uimJOMMC7HgjGcmugOxNpX9NDYalyH1erbQlCHVerbbShACUpQFfspCUpyM4Hnxr0XBEIIIIByIYYogeBkRxqmcAKBnbnAGB4GfJ883Eq3E9zcOu6Se4mmZVb+juyO+Cd5HBPGCfgOBWbq+RZR0JClkpGBhCCoHBwT5DjnGD3745OuWuvuKE7CRk8ggEgegyRz5+A+2r6g2reB68KWfCCSSARjg8Ac9sE+LHnpXaVwwBAPI5z5B+H285HH31d0KyrleEBCUr9rkkFROewB4PBHY4HfvpWQQwyDkH/r1qvIcaVgIUk+4DjPc8DjPmTj79KzUTSlUZ2yUDhGCQceyBg/8AUrxZx5YAB55PB0pVOdlSHM4JTnz8WTx25JP8DnSlU12Mp5XiUtfnwSCBnHbkYz5/ywBpSpU1aD3Vx7gSf6j+p0pXx81tk8E/6Mn+ulKiCgQ/jLDjmf1fZ8IPfvwc8fDjz0rBAPkVGTsyE7y7BjDnH6QJX8M8DOPf/LPbSvjtR/L/AKt/+1GTsGk/bZQnzIaQlKT37hQPmQfjjy0rJiQkkryTk8nyfxr6Gya1r2mY0YqxjJbCV9sfrAYJ7nkD450rJRWwCM4zjk+vnwagObYbQSRE4Tz4kEeWDkDBHHvONKwIkBB2jg5GSSMj7CSKlVVCW8jwrCuOFJI/r8DpX2QDwa/E1icZOQfdgDH35549w0pURNaUnKc58jnP/rSlVJpT7KQlKlED94hXY+fbPHHb7cnnSlVFmwfRwoZHHnnJznt+yDyDjBOe+RnSlTXzX/n/APL/AOelK/RVDPLpx8AM/wAxpSowrGAeSsj7cE/eP+NKVGTCjJz+iCs/ve0PuB4+/SlR0stIz4W0DPJ9kf7/AGdu2lKidu2lKaUppSmlKaUr8KUk5KUk+8gE6UqCqNHVkqZbOf8AKB8OMYx92lKl1V8cgkIJVg4T4yhJPkCQlXhBPBUEqIHPhPYvu/5/91kYyM5AyMkAEgeuASoJx4BYAngkea01HWvqzU0l25d9D97XV60bGZSuba2Zu2HRpgvQoc2gh2CJbFvcy57SJbTF/IhRIxZsXna+JVFFNuGdVRoaxqUcUvd0m6mmHceEwWtysQjKK8Kyblkld1DBZ2RFAkJRECxzvD6Fb+yr+z7UNS01dM/tO6d0zTHFpb6kmsdR6Bcak11Hc3FtqdxZvBJYadb2srQPNpMV1PP3LNEu7m7VtQ0i01DMPTXqhU9TIFFNrdsb7q03Ua3edet9q3MKpqZNNaT6qVWzrqZXxISpypFe96pMX17SiQ0p1D/6PWzsdTS+SFkt7uPurISZLeVI42ikaNo2lZFQvuRsbcg4xndxVedZf2d3vRl1qlvd670xffRs1hGkdhrum3OoX0Oo2VrfQXltplvdXF0tqIruPe8wjcYZwhjBYf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAEEAwEBAQAAAAAAAAAAAAUDBAcIBgkKAgEL/8QAPhAAAQMDAgQDAwsBBwUAAAAAAQIDBAUGEQAhBxIxQQgTURQiYQkVGDJVcYGRlKHVsRY0QlLB0fAXIzNFhf/EABwBAQACAgMBAAAAAAAAAAAAAAAFBgQHAQMIAv/EADcRAAIBAwMBBQQKAQUBAAAAAAECAwAEEQUSITEGEyJBURQVYXEHIzKBkZKTsdLioSRCweHwgv/aAAwDAQACEQMRAD8A9AGtb1eKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUq+ptNmVaW3BgoQ5IcStYDrqGWkNtpKluvPOEIabTskrUcc60JG6hqL1nVrPRNPuNSvpe7gt0ZtuUQzOFYpAruQqPKRtQkhS2AxAOazrKzkupo4kXeZSFGFZym4gb2VRuKr1baCQPKpG5oFBtOJPk1msTY6KQ22upTGKS7U6e+ZRbQw1STTnXXZD7UhXkSDIWy0klSVpbcATrzfqP083yS3c9laWltZW11sszfQyzW+qwAMHjW9gvnT2iCXekslt3cashjeJ2TB2hpn0dwXIiV5JrmaaLMqRTR201lMhzumtri2G2FwVZBiTvEdCCA5ZPPZ4n/lyIXh5v8A4kcPT4X76XL4bXTFtuXc14V+n0q1K6zVed+3a3TJFuN1+sQ6JckJKHYNTqtJjx4j7ioM3y6hHchK9HdjtRXtp2c0vtFp93Y+zanbd4yW5mnmtbpMxXFrLG7RFJLa4R4pEZd52mRdwOTrrtJpw7Lapc6TepdC4tyhV5Uj7ieO4j7yGSNwhO0htqnJUSIUJwATtl4A/lbvDN4872Z4MRqBeHAzjvWKROrFiWddtet69rQ4nNUmHIqFUiWTflBgUJpyqxIcWRJFJrVHpdScZZcV7KlxBZ1ga/c9p+zqyXc2l2Op6dEpBntLuSymgxku13FdRtH4FHgdCqXB8W9AwAw7VLC7SPup5UlZwHR07zAYfVjMTN9UzZV5CVbkKqnBJ7Sn46mVEpRJ8sIbUpchgMEFzASBh11CwpX1VNrIKSlSgnONRPZPt5p3ama4tI7a6sNQhEsy2lyBKs1rEUUzw3kEfsz+JxvhmZJbfcoVpIyWXJvtJks1WUSLNG7KNy7k7tnHMTIzFmw4wr7R12n42+r3UTTSlNKU0pTSlNKU0pTSlNKU0pWQ+HVw3BRqlOi0FVIzPgOvzk1m3k3FH9jpuJEhaIzaEzEOoiqkFpTUmPGDnK5MPltpWip9s7m5s+z93LbQ2swE8Ek6XelnVou57xVnc2i+NtsG9+8DIISvel0AzUzoMNvc6taR3LTxh1mija31H3bIZe7ZoF79iY8GbZmMxyGXOwI2cVD8eOItytWtU58anWkzRmYsCVNcnUCHDbft2RCdnuIaiF1Dc2cEM+YqPCSuVJyEpU4psq15u1TUb7U1gjOj9lCLOayaCa60Ozs7FtNvlN0gihYQxXE5hSORo7OJp5HG0CaUd4+6tH0uwtZH3Xetd7KtwXEOqzSzJd2jJDMO+EUjLEJnkCyS7YI0QfYAMdeFv5Y3xQWnUeKNk2FZXCfhLdVDotEN5ruC8rJd+fIleuGdJSabGNPuGKGIsSFDjmWhUhbUmU75qYzbjSHD6R+iKws4rK71ezhigivxHHLBFYmwGYhN3QMSSshZS3hAjjZQMMBhgdXfSbPdRmHTb2eeaS0aR1la7W7LBhECVcwqwWWQEl2YhwgaMAbsaheCfitedp8eOHV28F+H3CuLUl3JbFHuabw/s+r0S5rfhXTVo1GuSltzHaxNVCZqEB+cxErtK5mVRA4hYbKFtObP12C0uNJ1CDUoLeW3e0uGaObMtvkxExl0ZgoZXjAMZLK3IOVYCta6YHnuIWhmmSXcu4oUjKbW8TcIAwHVcjpjwlhx/R2qUE0Sx6dBTKclJkS2EJelpbfmONmMpwh6UtIcddQ2y22X/dcKUg9Tk+e+w9vGO0FzttrK3WK0nlHstp7MFkd4YECEHlGYeOM74iFZcbdoq6XZK2kRMk3jZATJIXYBwXblgQfECc4Hp0JFY/1uGoOmlKaUppSmlKaUppSmlKaUppSs0eHtcb/q9aUaY0h+LUVVelvsuI8xt5ufR5rRacbwQtDnKUrSRjlJz7udd1vFFPKIZ4kmgmWSGaKRQ6SRSxtG6MjeB1YNhkkyjjwsGBwcW8keGAzRO0csMsEsciEh0ZJkIZCOdynDA+RGfKsvcXeEMdM1NWafYnxKetLsK36jDbnw6eiK4EU9NKYW4y0w5CjLfYaSpIBQ4gOKe5QTpnVuxVvFrkN2L95rC2ZiulXqC4t7V7VgdPXTgNkcENkvepEjxu21wCcKoXZ2ldp7iXTHtAhjup02yXtvNsluDIB7V7WzI0sxumCu7CQHcueQzCvDt8pL8ipxt4h+KfiZxV4Vy7flcML+qTl5PtzKj5dbtyqzQlNXoEK32Gi/OYacZVLpLkVaY6m5IiKLDjatbO0jtPZWthDaARW8kaRxpvKrE5SPG9iFXBJ6lgTzkuTVZvdGmupHlnaaYySPwSW+rJLbWZi2BGNvgDeBV8IAJFbBeCH5MHh34ZKhS75n1WuXrxCfixvZH5EVVJZoqH/LXITBpbilmPOSD5Tj891wsJS42whKiXDG3mt6nqMkkM2w24Yx4jCxwCNwUdmVmme4YAghgUVGUkKxzmQTSbG3iC24dC8ZkLSOGlV4lViF2qiqC24jO4kcEenpZk3Wu4aHRGTTHqcmOguqTIeZedKkstsIBUySlRKStalA4GUgZBOMDs5pS2eoahP4XBUQRTBQO9XvTMXU7QwAJAKtgbv9pwCIK9DLFCGXYTkhTndgcAnqOQR0PzGeah9XOo6mlKaUppSmlKaUppSmlKaUppSsm8F5XsfFnh7I5uXlueE3nOP7y1IiYPwJfCT9+u+1YpcQlSQTKo49GDL/AMjHxrou8m1nGONm4n4qQyj7yP8AsdRvJxUcbQJjPmtF9Ady2lYC0pT1/wC3zFScAJ3KQCAfjin6/u7xwV24lcZxyRyQPMbctny6jpzVm0U5txyDlUxjHJCKD05PIx8Tkg+ddXnFIh1yQVKwATjlAOAQRhXfcjGDjBwc+tMLSd4F2EIWwJDkg8E8AZP44x054q6xglFJJI2/ZOCAc/Lrx8eta70unlNTQ+oYUF+6eQEgA7gZJ3xuCNhn1OpGCbClSudm0jHmpY7s59B06dfPpXVNHzvwCCxyp6Hwk8DBxx6nqD5cVsZTQpEKOgq5gG+cdsFaiDkfHkGD6bbAAavGmBe7dguCdqnOc8bm5/OR9wx61RtWJ75AMhShIXyB3EHGecfMmr7UnUTTSlNKU0pTSlNKU0pTSlNKU0pXK7DlexXzZUrISGLuttxSjtyt/PMNLhyNxhtSz6euuyA4uIPhIDx6ggj/AJx8a65hmCcesMg9f9hz+IyOOea2Q8YXFOyPDzYl8cWOJdxwrMsi3GpkqoVh9sVGUp99xqHQaPTqbGjSatXq3XlJVFp1DpjT82oVFwFSUoadeRX9bgM99Lbx7mLXDKoZgqovILM5ZUSNFwXeRgoGc81MaNMlvYLJI6qFRT4g3icg4UYyzO2CFRSXZuBxivMhxK+V+s6rXVVYFM4CcYF0Ki1QwpFTr9x8NLWqkZSmmfZ1TaLcFdprDD00SHjAMqqNgOtKgyVsTokqOiMj7P7kWRdStVMiEoqW09xuwQWPeRFwDHxnEbqwIZFYHdU2dakQ8WsrrGSWLTQQ7eCqrskMbqH5KliSCpVgGrbzw4eIjhv4k7bTdfDSquv/ADbKiQLmt24IjlFu60qtKZTMNJuKguvF2E69DcLtJqEd2XSKrHYW/BmyfKfZbwbjTpdOuDDcg/XAmGaL6yCRFZAXWUDbt5+yyrJgg7R1qTi1CO7gDxFiQw7yNlCTIzLhQ8WeA3XcCVwMFvKt7YagWkoAI8pLackYB5kBwEbnYcx6H1+GrXpnMBPkWwP/AJAH35yDn7j0qnao4a5K4I2Io5xjq5OMevHl/irvUlUdTSlNKU0pTSlNKU0pTSlNKU0pV3T5HslQp8snAiz4cknfpHktO7Y3z7m2MfeNcjGQScYeM+nAcFjnquBkkgg/Gh6HjOVYfirD9yPv+FYW+Xztm4bx4ccF7XpSVOUCVd3EWv1Foy4rcSTWrV4XVi4KG1KiTKzQmq0hESJWJaaQiaqdIajPuUxtcppKVxWrTR2l5I2GVne2iVY1diVkuowyHasjrG6vglUZWLgTNGgVqy9LjkltYhktiKYDJwwcQOysq70DOn2wchlVWK9WB/niceOLfFyN4g/7fcQuIVFf4r2Yp+l12VGaizmpkoUh2BTnaaxTJL1OuhNVt+XSBOnR3ac5APloqLS5tOdcctumWWnnS0hs4Xh064RWXhgYSpG4fWjcHM3ed13gJd3cLuUDEDd3t6b+Sa5nR7mB5EIxuEm/KqFVPDJlDvKhiN2P9wIrvS+Rlr19vcfoT1fbiQKheHBO6nbvpMJdXfZmxrYuunm3bp9vn1KtxLgZRU30URqvQJ1PhtTKhU6XCo5Zecqk2qdoktjBLHGzFYb9NpYoxRpEKyRsqqGikYHvAjhvA6sWy2KtWitIJo2mQCSSxlUhAxjZEkQJKGYur7SAhkVhlmZVyOR6voiORpOdyQnqMHCUJSnOQD9UD022x69unj/TRk9cvj4jKnP+cfdnz4x79t0z4IIBXkZ6lMnr8QwHy59Tc6zawKaUppSmlKaUrZ/6J3EP7ZtL9XU/43Up7ou/WH9T+tYntsPo/wCUfyp9E7iH9s2l+rqf8bp7ou/WH9T+tPbYfR/yj+VPoncQ/tm0v1dT/jdPdF36w/qf1p7bD6P+Ufyp9E7iH9s2l+rqf8bp7ou/WH9T+tPbYfR/yj+VPoncQ/tm0v1dT/jdPdF36w/qf1p7bD6P+Ufyp9E7iIf/AHNpHv8A3up9v/m/vp7ou/WH9T+tcG+hXk95zxwuevyJNSXju8O9C8SnBeo8Nq/KgUyvw1UK6rMuaXRYNywrV4iWu0XKLXJNAqrTkCvUZ11yXTq9Q5jYZq9CqMyMfLkezPM1LtBOba7kLAlJYDbzLu2NLEY1V1WVMvCxkQOjqCwY4wATid0S2M9qviBKSYj3KHAkQhASjAoY9rOHyQdpOMHp4J+K/wAlX4lrS4k3Dbtw+DqrcSbWuaPTv7U3RZV5WzXqTclyQEiC3c9G4m1KVQrosWiSaipd5Sraco0aVTqSmPaMmVMlIeZa7LfXoVgiK63HazQtiIzq8fdwFlkaKW1XclxKsREKTbmPfs04EagCsmTQ5DNIW0+a4jnw8rLOriWbPdiVboFWjjEqtcdztjCIO6ywJI7l/k0vBDK8KtFq9x3qzR08U78pFs0aqUigTvnajWTbluxY/Lb0GteUwis1avVpo3Fdk+G0ikCYzSKVRS/TaIxMkROp6mNTeJY2YQQyy7ZpVEbSmWRiu+JSdiRoVji3ASOo3soLYqW0/Tvd0U0kqlLiWOOKSJWZxGIACFZ3IDuzDvJJU6sdgGBmvQtbvhpvm5KFSrggVO3Y8KsQmZ0ZqdJnplNtPcwCXktQXW0ryhR5UOLSElODnIFz0/SrmSytZF7oB4VfDSYI388jBwcYBA9Kpt5ewrd3MWXPdzMpIXwkp4cqTjK9cfM1M/RO4h/bNpfq6n/G6zPdF36w/qf1rG9th9H/ACj+VPoncQ/tm0v1dT/jdPdF36w/qf1p7bD6P+Ufyp9E7iH9s2l+rqf8bp7ou/WH9T+tPbYfR/yj+VPoncQ/tm0v1dT/AI3T3Rd+sP6n9ae2w+j/AJR/Kn0TuIf2zaX6up/xunui79Yf1P609th9H/KP5VvwKpgp5ht32/r1Ocf5dunx1dKiqqCqsHbISc497p/UbHtpSvz53jDq4j9/6Anp3z30pVZupRFj/wAqc9xkDH5kY0pVwiVHX9V1P5jfP4/10pVbmSrKQoE4Ofh/zOlKwzxWQlURTgGMRwClQAJATgY7gnl3HMdjgZODrT3apQbt5MBSxLELnbu8SnrnjGOpznpjnN07Ple7C5w2+Q888buvpjg5+BxXWHxRitFyQotoJAVg8gIUc+pBG25BzsB9+Nb/AGrvK8qpGfhjIxyBx58ZGfj02BCCUVcZJ8IHqoB5x8/8HPSsKWuzmqJCUkjm26dc9gNsYwT1Odh31N2YDxr4go38t5YI3ZOORwPnznI4rGuySrpyPCwQjGWO04xuO3npzgfHoa72rI9lpVlWjDccS2WbaogUFKTstdPjuuBW+yg44oHYAnfqdegdNXZp9kmANtpbrgZxkRKD1J6mtOXbF7q5dgQWuJic4zzI2DkccjHTyqbcrtPRjD7avgFZVgZyQBnI6d8/DGs2serRVzQgSApJ32656dcDPXpgb7j7tKVR/tK0rdKSBsAMDJz0OPez1GwO/YaUq4Fa505SlQztnAJBPT/AB3ByCR/opX186vE7IHoMn/ZOM43Pw0pX47T3mwSAFpxkkYyOvQd+g6gnt6aUqwcYCVbpUk4wc5B/A9gfh19O+lKj3oQXuMg9iknY7bH1Hc4947HOx0pULIiSEHmSVn0IJIOAdiNynJO/puM9dKVFuyKgzkocVlJz15SNsZyDgnBA65657aUqOk3pUKQjzn3whpGCoq5lDfKcgHc7HGx7fmPQ46+VfLMqKWY4A5+J5HA+P4fOrO7K61cFs0yrMOIW3PpxkIUk5SVJceYXjckYW0c/EY7nOnO1j93eyK6kAFFAYcAlSdxx5Ek8Z6n8Lx2dVntw65Cln3MAGIXvAcEdM46DPOePOuvDiepCFPlYykFXYAHAJJ3x3wcnpjbWtWkxIAqskm/EhAGGBPIxknB4JGPLr5VsKJCoADAmPADlRz55A3cH/visK2e42qsNJJBJkbAEHmJVj44zknBxgYyRnU5pzKdsasrSFNy4OQTjYAM+Ybnpz8xWHebRHufoAQT6KRhiTxjhjk9cZxXavSqlOlNMR0SQppqOyyClYKUhpptCQO6gEoGMH03AB16LtwVghUjBWJFI9CqhSPuIxWk8lixLbiWJznOQWO0+vIx1/fNcxiQ33eUqWpRIGVDmJAPXG5yeuMZGcZI313UrkMWmr91RGADuo55sHOcp/wAxBH4YOdsaUqbZp7SCMjKuhycbEfWyduo2xkYGANySpUo3FWrHI2o7hIPLt0GMq+7p26YBOlKv26Y4vdzlb/c9em/Q+mDj8dKVPaUqm4lo4LgSR0BV+J2/DJ0pURLTTmwpS1Fsk5905BG2TynOBt123IOcE6Urik+oMNgiOsOLG4509O2MpJBIJ2Pu+v3qVwWpzqg5zoajgp6lSMZ7Y6HPTG+MdjkgjSvgs3jwvQ+Dj7Q8j/7Hy9cXV6m1Kel1CvNAKTlt1Kuh2IB69+4wdzvpXDsmcFgMdeDnoMjOMdeMc5x6g1GSasij2PSKEYNRXIpLc9l1MWKqQVtPS3pLBb5FBSwEunnCgFJUFDHvAnWvazs9ql9cG7sbdZ1dGMiI4WYEYUAq7YIYKCoVfPB5Bq2dndUs7ON4L2f2f6xWRpDlNmSFC7AemQzb2BDZwcYFaFcUrqdW+62xR7leSpDyVhu1bidc9o8xkMNARqY6khSFOqKgSjKRlYxvrE9m+0Mcyk6TeJnLYMbbguOMjDgAngDccjB6ZA2JDrGhFJT7zsjhk2kzplsplsjJzg8cYz584NY44dW5xIuKtMGm2Lc8SIH2/MqNZpj1GhNNF0Fx1BmlEh5xKSVJZbjeY5tgBOSLFofZLWzPbNNbdxF3scjCdlRtqyKzBhvLAFFOBt5Y4qH1XtHpC28ywXUd3KUcRiFHJztOwhsmNlDkZJdMjPGAM9lljWncNKjsplyZLxCUkB9XIgY25eRJ7gdTvk753xvVVVRtQEKMhc4yACcDjjA8vhWpwMCMkDcm04LheQACSxGDk84AHXrxk5rp7lVjYDixypAJSgFeOwGCUjbr1O+Bg5Gua4AcvvztGNpQj7WMnjnrk8Hpwetc2gVVtGA+la1DdXRCSDjf3fTbvn1wMaV21y+HU6a4AAlsEnfmwojJ26nI7b49D8ApU+260sJ5FDcDAByd/uyP30pVXSlQbtTKgfLSc7jB6dt8jODk/kN8bkKVHOyZDpIClIB6gHGfXfGM7DpknpkAHKlRz0fzyfN51ds5UTgAjffB6nt+elKtlUxtScZXtvvjc/jj0GlKp/NLaj/iION8JzzDsRgbAY79e2dKVUTQW3s8zC3BuN9sknpkgDp6/sdtKc9M4+5f3IJ/9xVZFlxHVczsGIAfreagLPrsBnPoCenbI0IBBBGQeMGvnYuCNo58zyemPtHxD4gEdT6mrpFiUgbltKDjGGUpSnPXHKUqwM9gR/prrEMS9EHpk8nHXGTk/wCabFwBjAHQAkfsRXyqyqeyeaPGjKV0SpbeHACMYKxjt36k9dttfQRR0UD5D9/X4ZzjyrkADpn8SfwyePu+fWqC7ZCCT7Kcf4fLXkZ2wQM9gCfzxknX1XNWy6O2nIUlaD6KTt8DkpBHrtsdKV+CktHCiVE9SRyjO+++x30pVYU9tJBBcyOhBPX1G2DttuCPh0OlKv2lPtBPI4sY7HB652AO46nO3TftpSpFme6ggKBxj63U9em+c9ASDjOSc+qlXgpixsHgB8E7/uD++lK+vmwnAU8Tv6Dp8Nh+WAO+lKqJpjAGFFRPYg42+O25P+2lKrJgRkdG87594lX9f+ftpSq6WWU/VbQn15UgZ+/HU/E76UqrpSmlKaUppSmlK+VIQr6yQrbG++2lKoqiR19WkbnOwA36dv8ATSlWztPYCFlCDzJSpSUla0hSgklKSpKHVJQTgEpacUkbpQs4SeDnHAyfIc8/AYBOfkDXKgFlDNtUsN7YBKrnxEAsoJAzjcyrnqwGa0xhcceLFOoVWXdPBeuPXCzJuJFPdoNHrcK3m24bzqLfFQZfl3PWJUefGcpkyoVSApryWaqw380wpESqNU+qLruqRwym50eZp1aZY+4imSAndi23ZNxK6OrRySTJtwshAgBSQR+hrv6J+wN7qdh7i+kjTbfSGt9Hkv4tV1LTLrV3aZAdb9injtNE0uCe0mjvoLKwuhKZWsHla/mt7vT5bvNPCzihSeKlBtqu0ykXNSmrops6qQxUKNM9iit02VKp8uJUasYrEKNURPp9QjMw+ZXtCYyXmXVofZ5pfTdVi1GG3mSG4iFxHJIu+J9iCN3jKPIVVVk3xyArjjYcMQVzrntx9Hl/2H1PW9NvNV0a+fRLyztJfZdRtfabg38UV1bXFrY99JcT2j2VzZ3TXChTGtyFlijMbkf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEEAwEBAAAAAAAAAAAAAAUCAwYHBAgJCgH/xAA/EAABAwMDAgIFCQcCBwAAAAABAgMRAAQFBhIhBzFBURMiYXGBCBQVGCMyVZTVCRZykaGx8EJDJDNic4LR8f/EABwBAQACAwEBAQAAAAAAAAAAAAAEBgMFBwIBCP/EADYRAAIBAwIDBgMHBAMBAAAAAAECAwAEERIhBTFBExQiUVJhBhWRMnGBoaLS4QcjQsE0YrHx/9oADAMBAAIRAxEAPwD6AK5vV4pSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlbD0voB3UWOOUVk2WbcPLaVb2rYurxv0atqlXad6EWaHBKmVuBZWkBQRBE7ey4R3q2F29zhTO0Qgt41lnJBA/vFmCQKScxNJq1jUFTbI1t1xIW8xt1tyx7PUZpWeOPlnTGqgvIc4TKFSGOAdOonKHOm+m7IIN7l8u6XCUoDBxrLe8H1kfatKc3J4kAj7whUmK+yw8Ds1VbiTikkmGVlQ2ijtBuqByNbZBGP7Q6788eVuOJ3GDb29okakF2kadnRG1eIqigNp0nKh1Oc7nYVT+4GmTcKaF9ky2Vr9C8H7RKQlpKSsXG9sFtcqIUIG0hMIUkkiJDLwQvKlz31SyO9uYZECAxldIuiQpjLkkSSBCFGGIWPL1kd+JlAYI7YqrJ2vaRylmV9g8RRjhebaWIwgOMNgVW90309sQW8nlWVKPdxzHuskTt9Uhht0+cqIST4gVKEXA5IYpRdXcPankzwTqOfJo9DoAOsiDPU8qxd74iskim3t3jVSwKrIrnA3XAB3OOYBIJzjBzUNfdNUC2fucVqC1ufm7Kn3Gbxg2ydiPvJTeNuO2+/gj7QNJCpBPHEscCtLqGWbh3F4LgxxszK6GOLSObCYkxF1OwUPnIycAHGMcXeN4+82Mkau6gFXDYDci0ZPakb7kIV987Vqyq7W5pSlKUpSlKUpSlKUpSlKUpSlbV6YXblsvOoahJeZs3CoGFJDSrhBI859NHkTE8gEelvZbEPLEzAkqRjIwyg4bb22Oc/nXvukN4ezfAYKgB89WrxHYkYxgFcEVlWQ1PcWrwS6kPJT6o3EbZIkGFApUTBmJPcAQIrXS/E9wCVlAlO4AYo2k7/aMqsQAM+HlvqxuWqRD8Mhx4GKEnI0B1yMHBDKQV3AG2/1xVDebbyalrW2l0bUg27jNq40tKYPo1hTJKpjcCdqkCCnyrVy/E2p9ZhglIChYnhtSAI8sQW7LU2cHUcjO33VPX4euEiESySIXJYTLNNrTGcNuxAAG2MHfG3lnOKvMappCkW6WTtAU0WkFQUkchBKCv0aiVEIJCeYkARUm3+LImBaO1jhTQo7MJCDrznGBEGKg7aS2Mgkb5qPP8MXK5WZxLvq7QSEkruPEu652ySAGA9sCsT6ivtp0reltASH7ywZSFKlQT84K1QD91KwknaB2nnbEbCLjV9xJDHMzCIYdY1Hg8DDBAOW8JI/65PXpBfhdvw8q8SqWbIBycDUCCV2GwxtnJDb+1ddqlVjpSlKUpSlKUpSlKUpSlKUpSlZxoRShf5JCSqFYwrISSJDdyyTu8I2qV7hPYVreKBjbZXV4W1MVJGF0sMkgg4yR+OK2HDd7jHUqMbeRAHTpnHvnrUrnrxj7MEg9jASoSQr1lK3AAH1YSATMeRFUq7uIFCAEYJaTnsWVSCG3B04PTO4Gw51eLSKZvEAVyo8O2F3A0rjJ048+RO56VY06t+4fK0jYwkkpTAKlLUQSuSEhQ2nafFJEpI+7WnjleVtQj/tqCFKjdmJI1BiVOnTkaSSN89Aa204SJAhbTMRnUR4VGPsf5Mc7HUcZ32rbFkgLYdIQU3CGypIlKkObYI7GAvg8EmQmeSeZ0WpxLnKSMo0gnBkC5LgYyAcYI5bnGcVprjMTEDJTXpMhwSuRgjGOX3ZyTvtWB9QLx1zCWzC0JR6TItbhJKtzFu8rsonalPHHgTwBNWj4cdnNxqQLsjbb7nGAMnOMZOeRJBx5VvjcSRiIqxYM5AJx0XJzj3b8vYVp2rTVepSlKUpSlKUpSlKUpSlKUpSlZZox5TOYVtj17G6Cp7FKUpWQfOY4HiePGtfxNtNsT1Lqmd+TZDctt1yDnbFTuHAm6QDortjb/FS2d9vDjUPcfgeVqm4Y+dJYZcQB6o2BSVOJ9X1isf8xMySkkQEn1eK53xN17QlAVQOBqxuRk5bOCOWBjnjbHKukcLXMRDsGYnxNsG8J2OCeq4J2x7bYrk6UeD7pZUspbTG0zHHG5CSTABJ3T29s8VAgcSNJC76YnLYAGoadsY8gdzz/wDanXQ0Ayqo1aQDzwW5Drn3H06VuBBLDAVbo2ttoSARICiJJJJ4PBgzMwSQe9bCQ6FyiFUQhFc9WPLYdSMgbADYbdNCxEraXbJYsSp23CABQvJVJGfD7499V9Qn1u/R++R6V+6egnupCGUFRBM8B2JIM+fHNs+HBIUuZXGA7KBsQdSqAw38tugG+23KrcZKL2ES/aRSxHlqJPTp5ZOTua1pVnrRUpSlKUpSlKUpSlKUpSlKUpSso0ahK9RWTaztS83dsk/9y2cjjx5SO3PlzyMF0gkglDZACFyRzGnxZGcDII2zt51JtCRcRkAE6upPL2x/urHUVjE6OwuodX6gzuF0npzBY7K5jM6jzmUxmMw+ExePYbUL/M5TJqZt7SwbtmlrvLi4uG7dtxfpH3EkI3Um4sTcOLZA8ksjKqRRqT2rPsFGAxJLDbAyAMnltdLG7aFRKSsaRqWdpGwqKucmQ5IHhxkjbURXmvY/tVvklM6sb03p7O9VdeuWuQat28voDpPqPUWKc9JZY25be9ItOLyNyy+zlrR7HZZWJZx+Uavcb9FPZAvJC8i/CV2iI8zWUGMsTLcrG2ASpZsBkVUZXVzrynZuzDQrMPcvxHaOzLE0s5DAAJAZBnSCSoUasHKhSygOGzGWCOV9TOgHygOl/wAonRruoOk2q8Zqq1xzrFnqPH3rOQwuqtM5F1+4S/idTaTzdritQafv2lW13a2qr/HCyunbG5RZXl981fCM0nDmsv7NyhRHUGF1aOZHUBXXTLGzowKsHDBvsuMhTkDWG6M7ZjdNaeKTJKOq55MhAbJOpAuBgqem9SPVcobyOItkAgIsbh7nvDt0psT5kBgQTzHHhJsvD0EdrEqkkEyEZA28S4A2zjruTkknliq7eMXuJWOcHszg9MBx78txsd+ucDGqanVEpSlKUpSlKUpSlKUpSlKUpSlT2l3QzqHDrJiL1CZmOFtuIPMgc7h348Kj3f8Ax5fZSfwG5P4DJOx26VJtP+RH99eXf7blerNW9JOk/R3AqvkYbqLrXU2R1Si1snL+1vWNC6Rus1gLPMW1vjc5duY9nOu22YCbbTuoWmrjHMP5XGnFNXd1awuC3UFvdXV3KUEkQgjhDM0TqLqYQN2ba4w0hTUhjVldwwCOrEZ3l3bSz28EUbSdnI7F/CCv9tDIhbSpZQGUEsQypoDMMK+fkJ1p8pbrS/1y0PrFGiNJ9JVaZyWmrHqR0ux2QstEaPzGn9MZfFvYNzqlhbCxxDCtN5jT9hYZO61NlGdRWGevG3dTY4Jx95Z4C66FZcB4U3Dbm3S8PEVvUuWtOIMJLieKaUMj92kk1rE8UoOhY+za2iZDKyyK7mpT8TvjexSi0Nr2DRCe3UIqSQx5wkqDSsraMlm8Qd8PGyxkKPph/ZN9aNU9QuqfSvWS9PNaLv8AUuT1R081Lpr94rK7v8poq903b5nTWYfwScBpy5tMOwLCyy2NuQ7nb3I3GOt9S5W309a5Ow+mKRxayisBf2qXPfI1W3n7fsHVEulOmWIyySzyNOFYhlKpBodltXbSxqwW1293HBcMgikRuy0EgSC3GNLKojiUrgDVoDuWJkkbxDHv91NeDuomWx/sYqySQPAul18g+37SSfEk17tdrW3XqFkJHkGcFT5bgHHXatbM5aSTPVufXbIHXrk/lyrXlZ6w0pSlKUpSlKV2h+qZ1D/GdKfmcn+n1tPlNx64/wBf7Kid9t/Ufp/NPqmdQ/xnSn5nJ/p9PlNx64/1/sp3239R+n80+qZ1D/GdKfmcn+n0+U3Hrj/X+ynfbf1H6fzT6pnUP8Z0p+Zyf6fT5TceuP8AX+ynfbf1H6fzT6pnUP8AGdKfmcn+n0+U3Hrj/X+ynfbf1H6fzVK/kwa+waF5p/K6YdZxDbuTeaZucj6Z1qxaXcuttbrBKS6ttpSWwpaEqWUhSkgkiPd8Jue63Lao8JbzSEePJCIXIGU5kKQOmSMkc6z2t9ALiDBYl54ogQucGVwgY4zgDO55gcq6C/Lc6F5jrx0c+ZaGvbmy6o6F1BZ9Quna06gyWlGMvmLGwvsTndBZfUGJWMhi9P8AUfSWWzOkMzfM7hZN5C3u1AMsOOo51acQgtZH1J20F0OzlEsKXIgIZHhnjglYCR7WVBKi6l1eJc5wK6I9nNdRRhHSGWE9rGEkdFkOGQxSPGQyxzqTE5zsjA4wGz8SGpfk16At+u19pz5T2O6yaIzursfjcTllZbTWpLLU/Rl7EJwWLYx+j9MXq7hnrPa4C0x1tpnGZTE53M6e1Nb5+1vsLiLb92765uemwcd4knC0k4P8vkS2a5kiijlglh4j2rXBJuZkSLuMk7F5bjVDE9u1usc0rRyKlUybhdo17LHereq86NG0jQsjW2kqoWEZ7G4jjXTGkhXFyZO2RBHC7r9Y37I/5Jurun2m9HdT9bW+vMVpXSWjsjgOkWmupeBttNaodzeq1Lx+tOo/7soedvdOYnNaZssVicQjONYzVOVubzNXGXsEYzE6WVVQ4xxITz3KjsTcXUwe5ktpZJYRCg1C1RzoEii4aaTYS26AjQDJratrb2nYxxBu0YRQMsSy6e01N4XcqSTEWVAcass5YkaCte2WQ+T3rTXdwNUYrJ6et8fkWGRatXtxfpuQi2SbcqcSzZONAKcQso2uK9WJg1ZLHhs89nazqyhHgUANrBypKkkBSNypOQevnmqvPdwxzSRyaw4Yk5XAx5ZzgnO//wArhfVM6h/jOlPzOT/T6l/Kbj1x/r/ZWLvtv6j9P5p9UzqH+M6U/M5P9Pp8puPXH+v9lO+2/qP0/mn1TOof4zpT8zk/0+nym49cf6/2U77b+o/T+afVM6h/jOlPzOT/AE+nym49cf6/2U77b+o/T+afVM6h/jOlPzOT/T6fKbj1x/r/AGU77b+o/T+a78HIp9vf/q+PiP8AD481ZK1VVfSrMwfV/i4P8p7e2fgaUr9OWtUxucSDwPOePCD4n+Xt8VKvIyNor/eRPsP9fd4fClKvpumFGA6gz2hST/YmlK4mWaF1isnbp9Y3GOvmQkCd3prV5qI8Z3xH9D2OKdNcFwhICvBKjEg4wyEDVjfSCdTY3wPvojBJoJMjMcqMFPNiGXIHuFJbmNhXlDcvXlm2HC2hZcQpKQFDdwsQlSSZBgEgcHmBxwPz4zTQsjvpYshUldMhG7eEMT4QeeMg9epruEOiVGQE4DazrAAPIacA79GyCevSmMCLgrceZSm6bBcZDraFFSUcwyVbvRkIKglI2RJAEHnXSapBISZIpBrbDHCuApIGkbHJxnHMAjOdq2GFGEYq8TaUyo2iY7gljyG5AJOATjON62ZZZd1Fs0ShSStCSta17zKQYG08pEAlR3GSQncSKmWt3J4V7MqugIRnCqW3ChcFiCDkDzO56Vp7221GQgozo2oYH2QdhkgBSDv1yDtXe3Qz1vZ6M00h51tCjiLVxcqSPWe3vSRxBIcBPHB4PNd/4YpTh9mpB8NvHz9xq/3z5EYxXH7vT3q40509s+MkE7Mc5IwOeeXTHWp5zO49BgPpVAJITyeO/jBjiYqdUeuIrUtkCQFAwJHBn28CZ8hyOe9KVZ/eRpRhKT4QRuA7jkgz5+XupSuR9N7khSW1QSOeD7IPHef/ALSlVjKOnmPZATI79/fSlVO2C0gnZvEd0EDy5gxzPEx8PGlKj3LUkkSdwPZQKdvHEHj2E8d+3alKjbmw3GQCk9wZ7KgeA4UO88EGTyaUqFfs7lo7kqWeJBB9aPKNwMmZAj3x3pSopy4v2gopdV6veOPGCJUeY4j3d4pSo251pkMShblxcJbaQCVFfrJg8dp8jJjgefemSOXkfLqMddtwfuryxVRrYgafEDyOeW2Nyfaunuobe2BcebbQIJUkkSNpMpUkAQJlJHMR3muLcQtkSWUFSp7UjGFAIU6N8dTpyds5wM4FdT4dcl4I8EHVEu4ySpJzjJ3zg4Oc88HkCMEVeKaukFvkoCDMghXJ48jxKY3dz4FNVPiTvHIrIh8ABUjAwRuD77j/ACyPbFWy0jWSGRXyC4wNzkoQASRncHJH+hWVtZH07rTqgQHFI9ThKQAAkdxMzwYnjzPIwWssk12jmPBkMelTz14CeHTsQWGAPMk9ai3S9lbzRp4gqFvF1KgkZI3JAJA5b9BXaPDZK8urazt03I9GzasMgIUAAG2W0BI5jjbAiCPhx+lbZStvACMYhiGPIiNAR9QTXEJTmWU7byyHbON3Y7Z3rMrS0fc27lrVu54KjAjjaZJJMdvdPbnPWOsht8a4Y5gSAVCdxnv6vYeHj4e+lKnrfHpSB4q7Se/M+YgDv7Z4HelKlG7MqjaCozB2giB3kKIBEGIEx76UqQax6+NyUoEzBO4pPbiDA955nsTIpSpqlKocS2ofaBJHb1hI8f8AP8FKVE3n0e2klxfoyDuABEE88wqSeOwHPI8JpSsSv8gwgKFusLgyAsEc9u4knvEwBHupSsFyV9fub0tsSncZU0JiBxMEEH7pIgn4V8z+eOh67YPvmsbM4bCqCuRhj1HnsQPyrV+dxuRyCHEKU5sUlSQh4GDIPAKQFQZ7AeHckGWM48/w+nX8cUcqdidhjI0khsjkcjGx6g7EcxnFdfdWXP0Y4nH3yha3O1KWGnvszcoQmAq39JCbgBKSpZZK1Nx9oEGRXLOP2N3BczMYpOzaZ3SZFdoyhJI8elQr4JBB26gEnfpPBbiKe1txG6a47dVlQuoZGXGVwzKfu+1+O1Ybj722ccCXXWlpUIKfSI4lUjjcCCOxngRyPAVCVI2QrJhl9TZySM4OMczy3X396tmp1jjePUGTB1dFGCAegPTGN8cj57DsFY91y2tGUC5u1pStq2YSLi5UCSErDLQWsN7kwXlbWkAErWBJrYcK4Y11NbLHbPIFkjaQqjYSNZFLMxwNKheZJxzxvWm4tfCGCZpJQupJBpD4Yt2TAAJk5JOOYJO4B2AGzdEaS1FjGW/nlxcvq+/seO1IMyQUp7kEkAmIgg9oPcyNJI2IUhQV3GkABSBzxpAA9t8Vx5QwCTAa3J1MCwUZIO+Tn7sfn0G7ca7lLYALcCUiJCATAAKQBwPCT3/lXzryPnnp5b+f516jQo2Q5AIAZWxlsE7jYeYH4H8M1scq0kpTcJcXHJMFKTwPWhPhwQkTIEngnj7WesvscjjXYCQ2lRPIIEjxkmZJ9vw8zSlTzbjSwNikmeYB55+Pf/BSlXaUqFeyJAOxJ58+YHgYnz8pMClKjXbq5XICoB4PKlEDuQIAHJA8vd2hSo162U/JcU4oE+3gRESIjmT8fbSlcZeKbIg758JI59hHl/h7UpVr6KZJgbjxJjaPGPLge4Ennv4KVcTgEPATbuOAyCSIEHx5AHbtJ+E9vhAPTfz60yfP8l/2Cfzr9uNA4nJsm3yWGxd1br5Wxf2zV40Y59Zl5LiCZHiImD7KN4wQxLA8w/jUnb/FgV6cgMe2wx5VQpyuQcYyCQcZzjIPnvnn74qDa6D9L2nPTI0RpNl0kqJY07iEIKiZn0SrJTfPidoI5Ig81FNhZE5Nrbk5zkwxk5891Oc++f8AypPerrGnvNxjGMdtLyHT7XtWR2vT3BYpstYnF4qybJ4btbBi0EmOSm1Q0gHgSrb2AHbtJVVQaUVUXbwqiBduR06cahn7QGrGBnAGMLs8hy7u555dixyORyxJz+Pn5mv1emktk/8ADGOB9mvyPBABJ2iO5nmvX3nP0/0BXwDGw9/bnueW3PyriKw6EKMoWnjsoGZ8+URBHs9tKV+jFM9hu48Rtkf+UD+3bj20pV0Y5KCIKyrw8OTIHYdx28qUrntF9rhKnIT/AKSRETzPxIEAkwOOCaUqSayD6ISsbo/1jv3Pee57cdopSucMaQoHen295P8AQ+z/ANTzSlV/R4mSsDwlKYMSDxyf88aUq6mxbH3lLPxEe/7vHt8KUqv5nb+KN38Rn+9KVeSy0n7raE/wpCfGfCPGlKuUpSlKUpSlKUpVJSlXcT4c0pVlVrbq7stj+FIH9h7v5UpVp20b2OKQDvCFKSkrUlKlAEpClBDq0hRABKG1qA5S2swk/DkDYZPQDmfYeZ8gNydhX1QpZQzaFLKGbAOlcjUQCyjOM4yyjOMkCumNj136sY7B5ZWq+i2duNQM3OokY93BYfN2On227R5xOnRkGXbvVGXuWL+2cxl7f5SwUz6FnKso+ibJ+1ybOPrScY4jHFL3jhkjTBrgR9jHMsPhz2GpmaaRkdTG8kqAFVcBYSyydn+h7r+k3wFecTsPkf8AUjhttwh7fg8l9DxXifDLzirPMi/OxZ3EVrwLhkE9rNHfwWVhdiUytYPK1/Nb3XD5bzdPSzqliOqmB03nMZhdR4pnVGNvsnZi/wAPffM7RvG3V1YXdnkMsq3ZsrfJJv8AH5C3aswVh9NsHmXlouGQrZ2HEk4hDbzRwzotxG8gLRvpQI7RFHcqoEnaI6FMYBQ+IhlNc4+N/wCnl/8ABHE+N8Nu+K8Fvm4JeWdnN3XiFt3q4N/FFdW1xa2PbPcTWj2dzZ3JnABjW4CyxRmNyP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAAGAwEBAAAAAAAAAAAAAAMEBQcICQIGCgEL/8QAQxAAAQMDAwICBQkFBAsAAAAAAQIDBAUGEQAHIRIxCEETIlFhcRQVGDJVgZWx1gkWI1KRwdHj8BckNEJicoKSoaLi/8QAHQEBAAIDAAMBAAAAAAAAAAAAAAUGAQQHAgMICf/EAD0RAAIBAwMDAQUHAgQEBwAAAAECAwAEEQUSIQYTMSIUQVFSYQcVcZGT09QjMiWBofEIFkLRJDM0grHB8P/aAAwDAQACEQMRAD8A9AJOf8/559p89c2AAAA8AYH4Crx8OAMAAADAAHgAc/H/ADr5rNKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlK5htxSetKFqQHENFSUKUkOOBam0EgEBa0tuKSk8lLayOEqI0b3UtP02NZdQvLeyiaVIVlupUhjMsgZkjDyFU3MqswGf7VZjwpI90FvPcsUt4ZJnVGkZIkLsEXG5yqgnaCVBbGAWUZyyg2uvHdi2bGVOVXkVGJCp8dmQ9VVwnlU51UhqM/HiQkx0SapUZr7cgmPEp1LlvSfk74jJePoQ9zjXfte6Z0PU7jSWS7u7q3tmuu7E1pFZTRrBFcusFzNcqXZIZe4/wDSCCOKVldiIllueifZ/ruuwW1xaC323U4hSIuxnU7pELyoVWOJA0eN0kqhd8ZkMY7hj6bK3vtZNOTUqXUrnuNyuz24Uam0C1kyDbNM6Ewp9XfmutLjoqkGatEhijVl5ct4rbamUqEF/JhxKX7eurp9Qvr/AE7Sbibpm6W5j08Pp9ol3Zw26eztqVu/tUpvH9u4hS4RrKcMqtJAgJa7w/ZWqbbK/ks7O/tdpmlnvnSG9nfE8VmiYGElgO3vwsuwEOskpOViN7/7exa9RLYZuQ3GzMoaZsi7vRMw4K6kyXW5sEhmOxA62H2jFVJK6ey9UESoEWKt+MUuSnQ3/EV3rSysurtG1L2piYfva3tYrT22V8GIRaTK0M0hEjPbzS23oZ41kittkqitTV/si1iOK6vrFYbcRSL/AITLK0k8UJjWTvCZmYlHjYTKkm4rEyu82xlY3thVODUG0uRXwtKwSgONusLWkY9dDb6G3Ft+sMOISpsngKOvpTTuotF1VEay1C3lZyFELOYrgOU37Gt5hHMHC/3KY8ggqfUCK5Nc6fe2bslxbSxlMliAJEAB2hjJGXQBj/blhuyMA1P6mq06aUppSmlKaUppSmlKaUppSmlKq1U3Oj2tY8ui1Gm0CorlTI0C2RWKfNTFiViuzG6cJ1YqVDqVEqyaTEdmNOz3UVH5SxAL5jBYZQyKF1/qek2elW9lrFppd1FfXAtNOTVIZWto7ycxQJNPNbTW1zHBG0yC4aOdZRCWaMHa1WfpDSLzUtXZ7GW9hNtA91eGylj70ltaK1w8cENxBc28lxIsRWBJIWjaULuAzuGAV+7neGlFJuaVfkSz6DMsaJSbZhwJFT3Ndp1PrrUZBfiU4LeuKoy6EZjLsakTKSmW/EissobhAQGGnuAXkfR+tX8Ek+hdPrqGk2sdhbWdpf8AUdrax3UVv2Z98C3F3HcWMTb4rOftyvEixhI9sSAfQeldO9fQm0j0y512eHWpLi/a4S30Rpp7NpBl3ci0WK92Osl1DM1usskrSSSsZZWS29cplhWE1aO7FoWzQaXt/c9Et65rtuezL8rFMiQpLVVEenS2beRbceddkWYJsGLG+UQ2JC6sp5mpQYiMyhE6voqQ6VDcnSu/FLJHc3ZteoL54uz7SAYXee2W5aCNduBHHG4nMuUMoU1M2DalqdzfdP3+rXzaxp0tzY6ZY6hodnNKZDCZZke6S9aCydFgd5PXMi2wQ2xkyyNh7UtwNl6hctzWbc9rvuXRT7eqN729Nd3L3ANpyLfmOPV0z688+uE3GdlLmuyxA+aEMxnX1OpUicUoGzp+lWMwuLuXp23lgezit9NWbUrrFmYgswSCUqLgWxiYEFpYWJZvQvObmdM6lh06yvtO1eVrKa9j03VEGh6Qb9rlAto0cEStIlxs2CNJe8XkVVDJ2xlM3PDz4ldw6hUdqLd2/tW1rms2HEaD141VN1Xexb8oX1SabWaNTqxXpyEok0qiuqlQW5sd5T76I8inqRAgejcuPRi3Onarp4tentGlF1dW05u5FvtRWxkOoQRSi3a8upVhkhtRJOHVUU3AWXa4hAbkn2idLaXa6Vr9/qOr6rZ6kkqxxaYo06we8hl06SeG7mtbKIkwzXHpkMUrGKESRybZnBXY7MlPTpcmbIKC/LfdkvFppthsuvLU44UMsoQ00jqUelttCUIGEpSAANfTJJYszY3MzMdqhFyxJwFHAAzgAV8xqoRVVc4UBRk5PAxkk+SfJPxqX1is00pTSlNKU0pTSlNKU0pTSlXb2xpFHrVH3WYrVNj1SJTNtK9cIYfYblFl6jhtUaW1HdBaediy5Md5tLo6ELSh4qSWkqFX6xghfp3V7u5tUurfTdM1G/kVohO0ZtrSSaGWOJvQ7pPHGyhwQpAkwNm4TXTl5Pba9o0NvcvbSX+p2NmWVmUSJNdRJLE7rhkR4WkViCCykpkbzWl/xMbDWtc23k+fEhtm46RVIVx3Wv0K0Kq1DbVHpkNqnTWn3OqS07LZmzyGYSnmnXUGoIdg4kfA2jauLa3uJFnlm122Wa9muLiMdv7tmeKJUinWaUzTpJLFcTdyALyVG5oz3f0P6V1ia21y3gl9Wk3VtLp+nRxPHuttQbfdSNcxFFVYiLeS3h9cjIUjZYis3Fn7kom1lrbpbHbsyN3Jto2XeW3SNtaFtLULAqdbhB606cqzplGuJ1upVOluWou9Z6LyTJdkVerdc1Si3HkLRMZ7t09e6beaZpl5HcF7e4gMBhkgdi00DCK47pMsyNHPdCac5ZnPcLYQkKIS4h1q50frDpn/AJbg1HVtN1k67c9RW+sW9tL29QcajBc2gNva3A1EaZH93lCltakRsp3r/SbHmq2xvzZV9QrCuaZsluXu1clSqsK7I1HoNLkVCLs1TKfEenUavT4FCpKqbQ54VPqCKTT23K1BRFjqivvNLRGbsDRxpNFbRf1ZXZVaBQHCBjhgVQhU2quwyKrN6QqhFIB8hddL6jpU2rWUfUuhdO2FvbS6fJcXM6wS9SSSMkc9sJ7qdbi5jzFAZXZbaV5WG1GwVzA8C0umVO8Lum7e1t23NuK5V4ECwNsqsuSahQrfs0rql4TlwVPVCLHm1Sr1WG29UDOkyJgnSVyXw+iM21ZOkJO7qRW2lEcBlHZtZdyyCODbLOwXGd3qjXfIDnuN6gygnjn2yK9to1rHrFkt9r1tbSz6xrdrs9mubnUu3BpcYlCxNIkNvFK62/bQK0KKqsGkY7a9dnr5SppSmlKaUppSmlKaUppSmlKaUrJ3wmLZVuhKgyEocYqto1yA804Apt1pTkCU404hQKVtrRFUlaFApUCcgjWxbrHILiGVQ8ctrKrxtgq67k3BlIIdSm8MpBBBII8VH6k7xwRSxkrJFdQOjgcoQxIYEYKkMFIIIOQKv3uXtVtzJbkxG7MtRlMqC3TZObbo0hp2ltvocXTVR5UN2KYj6W1MuNhkYSouoIeQ24jnN/0x02s8n+CaOm+H2JyunWRBtA7EwEdshYX2+pAu1jhmHpBF303qXqFY4XbXNVLJMLoEX92rLcYwl1vWbeZUyzKSxIztGBxWvzxLeHDbq+9u0WpQ7WtC1a3akWrSNsriZtyEr9wLiqKFKXXKNFi/Iy1JEkNzVdKsGdHi1JSVzIUZxFdvNCsIrFbTTrKzsBbGUWSwW8ccVq7lm3RxxhEXL+tvScth8FwDXQ+l+utcsNXfUb3UdU1C3v5LVNdtZL+UNq1hGwJtLiV2k3J2w0XIyYGktwyRTSA6sfDL4Ppm1d63DuPuxWI987pKqtVgUy6oVZrc+OqjVCDHjS50tVUjU+XLrk1S5kd155D4jQ1I9HIdfdUpnR0Tp6Szme7vZhJcli0YR3YKrqVZ3YhHMj5fBJOFbIwea6P159qcfUOnw6D0/ayaX05HFA0llJbW0bm5jkaRYoxC0kcdpG4jdFDIZWQFkQZjbL3Yjw6UHaiobrXy8iJOr96XjXKpQpSVvL/d627hqFMnP0GE06hCGS5JpjUia62lwuudCUuJQHOu6dNaLDZXlzdkB5rmWd0bLHtW8mxhGM45LoGJxjAxgHzx7rrrG+13TtH0knt2emWNnazKNu68vLMTqt3Oyf8AmOsdw6ITjAZty7gGN/NXquX00pTSlNKU0pTSlNKU0pTSlNKVf3wxzPkm9FpgnCZbdeiK9/XbtVcbB9uXmmhjI5xjtg+23LCYYxgxTg58ZMTADyD8fBH1rQ1MZs5OMkPE3nGNsqn/AFOBWaN/upMp1tK0lSQnKSpOUjqUpQ6U8jKcHkZzjPBOqtqXMgLAg7mIYqwClgxJzkEZOc5ZckhQpGTU3YECJCRn0oMHgNhc8EEH384xgYwck4xD3DcBafSSAcLBTkHHSFZBGe/kc4PAKee1ZuzyGXCkM6gDgDdnB4Kk4xnCg5/6sDzarHxnOScEnwDw3IU525GM8nP0rEyoUqQmSqQ22A2VlRGOoYJ9Y458iAPLsQe51rRyESb3Y424ON25jgDkhseQCMAYAxzmpYNGI2RVwcDgEjx/aBkEe7z9ea7k0VIooSc4dkMgA4PSENuqVg84ypScgEA4yc+rq6aM2Rg+dmc8c8L+GPP18VStV5kJDFgGAzkhSfUcYwVYgkgkFRkZx4FU7U/URTSlNKU0pTSlNKU0pTSlNKU0pV1tjZYhbuWC8TgLuCNF4OP9uQ7Bxn3mRg+0cawG2yRgnhg6kfHchUc4yMEj8a1rwFrWYAZO0H8mB/8AqrP/ALWjxX7geEna5Tu0caL/AKXNyTdEWyqrULflXRTrTplpwKU7cd41CDGiPImrolIkwJ/oK3KaocVmRV7lqyKkzb66DV4vdbtdf+JyIlK7lMkcXcZiQsaySMg9UuIwUBcu6KFw25dqAXCW2YgVKxbg4BfYRgZIA8BcsxchVVGbkA58RniG8Zm5ru80KLcfi9393GiXdMZqFmXzbO8W623luRWpVVi0ibU6xRIkus27S6VTazTK5Am07baNQJdEXT3adKhuy5FVeVuaXZahf6XNdHR7XTLi3Mi3enXFrYajO6xK7RpbOrWm2WeJopovbhKjLIrM+BGy+25vLK0vYoDqFxfQXCxmG8t57m0iVnkiBMwk7v8AQikEySG1EMq9p1xiSQvsu8Bn7Q7d2193LU2c3cv+vbs7WbmXurbm3K7ekoVu7Nub5lVldKotCh3rPbpt631QqjIqFoQ3pd+UpyppVeNMkx63Dk0ap0OsV+7sLa9gY9iK01K3s4btxCgjW7h7ILzSQx9yygk3R3v9OzunwbV/S8EsUkMvFO8EykXL3FnNcSWyb5jL2ZWdo1jhmkdbydAJLYh7mIErOAzrNC6T+l1wgU+KnkZUtYHlnCR27dvzP37mjgBfqUXIyD43e4eOGHnznjwa1NRI3IOM5BHnPIOcc493vB+mKkdTtRtNKU0pTSlNKU0pTSlNKU0pTSldw29liBf1kTiSExLutuSojg9DNYhuLHwKUkHyIJB41gnGDnHqTn6bhkcfEcH6GvVON0MwzjMT84zztJHFWA/bZ7ZU+74O1dVrNu1u4aRVKZvXss23QKbZ1TlsXVu7ZtLkWdHqDd/h61qfQ6tKsqo0aRWZEQ1SFW51uJoU+nVd6Kt6s6tJcW7i5t5oYUtpre5m7jXCq1vDcp3Sgsx3mljB3KgLRMnc76tHuAktNEcsSxSxM4mhlgj29k4do2X1C4Kw7WwuC+CJO322DZ3fnX7s7dNv37uBG2W2uuC5NvduX3qlRqtNghM5Md2RbTdRYrMtNNgyL3pEavXdRolDgBn59TQqpbapLhj1N5Mvp1nqwS00xtV1Cytb67ARoowojkci4lVhueTsbobWXdLI3s5eK5RMMqiKoz6eXnvvYLS5ktoMbZJM7lx2I22kogmJkuIikaoZdkkRdOWzmB+y024lXz4hPD7SKNSKS/Kubeey91amiHDTBmUOnbY1yDe1ZqMauUCcJMOhegt26KHFs2uwYdtIdNHdfkT7kk29HfgepLgyTXUjSMq2dvLATHIRFI90rxxRGCaIxbsTW7+2QS+1sN6RpHa90NOaFCI4bf8ApruuLiGclhtlTsSKTKJ4ZRKQEjnQWksK2xypm3T9sv77piFNNRmyRwgnAAABPTnAHt79zg+fIxBabGI48E5PpAP1KkkcADwAc4Hw8+ZK+YtLyc43DHw9RHA9w49wA4qQ1KVpU0pTSlNKU0pWUQ8Je4x5Fbsn8Rrv6b4I8x3B1JjSLo8h7f8A9zyj8sQt/nnH0z7tL26L5Jfyj/cp9Ercf7asn8Srv6b1n7nu/ntf1Jv41Pbovkl/KP8Acp9Ercf7asn8Srv6b0+57v57X9Sb+NT26L5Jfyj/AHKfRK3H+2rJ/Eq7+m9Pue7+e1/Um/jU9ui+SX8o/wByn0Stx/tqyfxKu/pvT7nu/ntf1Jv41Pbovkl/KP8Acqbp/hV3HgT4U756so/IpcaXhNRrvUfkzyHuM22Bn1OMnGdYOkXQB3PbEe/bJKW+mAYEGc+MsuPOaw17EysuyUblZckJxkEZ4kJ4849/irn+JTbaxd4bWu3bLcqgRbnsq8Ka5Sq7RZZebRJY6m340iNKjLYm06pU6cxFqdHq1PkRKnSKrDh1Omy4s6IxIapt+0sVwzrgduQ7uWLKAzkAx8ghtuGUqVZNyurAmpmwKPEiOCAFTkkDlwF+PBGMqwycgY2nBryjbzfsM9z6JuXbd07O+K2lRKHZkakwNv3twtoqJNvGyqba6qZGtWFUKtaL9BoW4PzPR4tQpTsuqW9bNTrMarqRVahIciJff021bSxbXdneaVI0N+88l7HDfTdm89pWV7kduZmkgM0jLIVjleGMQf0IYd+5N9dNvmljnhvSjWyJFb922ikeERCMQEyo0Pe7UYkQFgWZZWErOBg5seEbwJWR4SxUbklXlXt2t4LqNXauPcm54kOkNxYFduOVd1Zt+xLSgOyqfY9sVW5Zrteq1PizahPrFTRCcqtWmwqNb8CjRMt8k8kMFpaw2Fkgt1FvBuZpTaWyWsMt3O57l1PHbRJCrycIiYQZZ3eVjtJEhkluJ3ubkiQvNIfTGks7XEkNvEpEcELzN3CiqWLYLu+1du1yzdj7t3Mo6q9Qp9vRIUaY7TFJq8upMSHJDMeLJccaRCpM9ssdEtpAWp1Cy4lwejCUpUvoOkWE13amaIxoN+wiYyI25UQ8bYpARhh7xVR1C5jhnKMsjE5fjaQAxIAyzgnGPhXa/olbj/bVk/iVd/TepT7nu/ntf1Jv41aPt0XyS/lH+5T6JW4/21ZP4lXf03p9z3fz2v6k38ant0XyS/lH+5T6JW4/21ZP4lXf03p9z3fz2v6k38ant0XyS/lH+5T6JW4/21ZP4lXf03p9z3fz2v6k38ant0XyS/lH+5T6JW4/21ZP4lXf03p9z3fz2v6k38ant0XyS/lH+5WexqoHdIHxT/iaslRlcxVmCcEBPxWB+STpSvvztFzgrQD5euOeM/yjtpSoyalEUcelA96ikDtn+Yn+gOlKmEyWFnCXUH78Dz8zgeWlKiZCkkpOcg4KSOTyODyAc+fkdKVZLcpDXpkuq6fTdKVqxhXPSexHOCD5ZHYnIGuS62wjnmXOG3tuGRwPWVGGAbJHAIB8+PBq3aSiukTMQRjOQfkOVIxkEY4PjjJznxiBfMlv0Ty8dWAo89OArBzg5zjjv6o+HGqhcElwc5O48FcbVBbBHOTlgP7gePiDkW23/sUliwLcDb4IYgABRk+rk5z/AJCsY5EwuVIIUo4KuM5xgE4zyoBWQc46R7c548bY5kTAxhig8ADbwxIAORtBIAIJB+bxuXEeLYtnBYZ5IwvpOAOOeCeSw/AnGNonhvLFP2whKedS2JdVqckdRAyUrbiE+0j/AFVKfiMAd9ds6aTZpUWd3rkkYF/OPSmBwOAUIHw8DgCuVat/6+TgDCIAAMDAaQjjn4/HNXuXXKejgPJUR3AUPzHUD5/5Op+owkKCScAf7e6pNy5YSfqkA+xXOe3Y5TjAPmDnjtpWQQeRXAXIyTgN5J8sf/elKjCtFwdSEnHbgJGDxn639592lK5fOjh4AUD7SlBA+OAPz0pR6mvJ5RhwezOT5ccgZ8z2AHHJOlKpq2ik4UlSD8MfmCO2lKkX4SHMkEgk5yDkdWeSQcnnJHBwO+NKVSHoj7YJySkHlQJOB7Tg5Az8CfZ30rxIzkkZ+A8Y+PNUV96pR+W3FKSkccHrAIwrgHCh7cDAHlwdK9WZOD3FMZH9+zkHJGCv44HAPB92KkJF6TqS0p598BpIJK1kkD3YUTn6oPs7AawQDwa8d8hVmyAAAR4zy23jj3kHzjGPqK6/fleaqEODU0LCkTqbBkpUBgKD0NpainHAHUVJ9oI5GONcl6lbZfXAwQVd2IIB9xPvYEYzke4/hV70NXktYB7ypXHA5yMAcnOdvOSMfE1h3fFVQpp0BefrnAUVDOVAnkY8x54JHOcc0iWQF32kFsk8jGB/coIB4Lc7T8SNxAGRcoYiMKASRyPhxglic4GSfBP4VjuicgVVCs4y8nPI6Snqx34PCgOCAfLPnrFlKDcY4IDKQRwc5CtwSM4GfgOPqDW9dofZ3BOMpjHlVOCMfEenPKrzkc+a2I7Yy5QtGhxGXgGExnnsJJyPlEp98ng4yfSe7gjgjXe9BUrpNnk53I7+/wANI5HJLEjGCDnkH4VxXViHv7nGTJvwuSeMAZGD6RheSDjkn/qzV3IsJ9/pKlL6T7yVKx2+qcAE98Y88AdxMVHIjOoHCrg5bOSxzwAPdjn3j/OuyRaaoJAAKQDklRJJzweVHkjBB74wOOw0r3qoQYHxyfx/1qtMQW2+SOo+1Q92D6ucf1+PfSsgBRgDAH+/vqpNRVqwG2lHHb1fbk8Z+/ONKzVQbpjysFZCAfIckd+/s8vI9+caUqvaUrgtKCD6QJKcYJUBgA8dz2znGlKpMpNObBUpXozjujgJwB3BwOfbzznPs0pXVJ85pAUGFBZHUP4ieMHuDjOR2HIAOMk99KwT5xyQPHjn3DP1rodRnT1pKUseqeAUdlYGSQruRgHOBxwCCAdK0y7NwzDH4c/H3eR4x4PnI8E2vr1MqM5t5KlOhtQWPRupURgggAKAAHq9hg+88cq9zsrj0nOPK4IznHvOMYxn6+Ks5uZfNZtW16bA/cy56wKZCEb5VbsSPUGw02tRbU5HVMYlIUhrhYQ05noBa9IpZbRz3qnp7UbuSS609VnLqxki7ixuCV2ttDMofdk4AYEeFBPBtOhaxZWqrDdu8IjZQjhS6ncwwPSC2eSDlTgAsSBkjX/dfiHpaVuMyLd3FjySnmKvbS/33ELIPqelh27JiKwfVUpqQ4jOOlZGCeaz9PdSk7V0W8YBmywiyCASBhiygjjz6TwPOeb7DrOh7Qx1K1UkZOXUnJIIJUZPAVcZP1wKtdS723Iu6sMt2fthekll1Q6J9apT1uwm1FWAZKKmGqw0126lR6PLdyQUsrT1KRvaZ0Z1JLMjtZraKCSzXE6LjJByVjZmPk8YzngDANejUOqdCiiZUuzc5wpWGIsGYD1BW2iPgjcfBHjGa2UbTULc9FOifOUKoRnkx2EOIW65HhNuJQhK0sIccS4W0lOEFSAopAUoA5A7nYWxs7K1tSwZoII4mYZAZ1UB2APIDNkgHwD4HgcivJluri4uFGxZJXkWPj0K7EhSQACQPOBjPj41lvbS7nh9Hy+SFNAD+EgqeUk89J6ykEEZz9bnp7knI2611LqCVOAfPg+OPfn41dWDVWxgPhSzjJOQkjHB4Geo8cnqx7NK21cMAQDyOc+Qfh9ecjj8a7dCqVOV0gISlfrcnBUTkjAB4PB8jgd+55VkEMMg5B/299V5DjSsBCkn2AcZ7ngcZ8ycffpWaiaUqjO1JQOEYJBx6oGD/wBSurOPLAAPPJ4OlKpzsqQ5nBKc+fVk8duST/Q50pVNdirePUpSznPBPUBnj1eeO3PPwxjSlSppafb92T/aNKVw+a2yeCf+zJ/PSlRBQEPgBTC3Afq5SAPPuSlWfP4c576V4sitjcM4zjkjz+BHwqOmzIToPpYEXvx6UBeMjBOMA/HIz7D5aVgRIDkL/qf+9RRYFCIPXGZyTn1GkdJ+IVnjywMe7GlY7Ufy/wCrf96CxqSx60eDBKhnHVHQhR9nrJGORnPHbzPOVeWxSoXHpByBk+effnPvNQF2y22RiIRgnltQUOB5cHyz2xgZ7gaVgRoPCjyDzk8g5HBJHmpZdISjI6VpPHBSRnt59/PPB7nHbA0rzIB4NEUxBGSSD7gPf555+7tpSoqaaEnqBV7j39xzyB+f3HSlVFpTzKQlClED+Yg5x7e3lx+eTpSqizUH0cKGRx55yc57f7oPIOME575GdKVNfNf/AB/+3+HpSvopQzy6ce4DP/kaUqMKYwDyVkfHBP3j+7SlRkwoyc/wgrP83rD7gePv0pUdLLSM9LaBnk+qP7fh27aUqJ27aUppSmlKaUppSuKkpV9ZKVf8wB/MaUqEYzByS0jn2DH5Y0pUBdPjnJSg5wcJDhQknHAJCVlIJ4KulRA56T2L8P8A9/8ANZGMjOQMjJABIHvwCVBOPALAE8EjzWGg3r3ZpNErblb2PvatV1o1GZRXLasy7YdDTBehQ5tAh1BEtir1mXPaRLaYr8iFEjFmovO0+JSiijXDOpVaGsalHFL3dJupph3HhMFrcrEIyivCsm5ZJXdQwWdkRQJCURAsc7w/QrfZV9n2oalpq6Z9p3TumaY4tLfUk1jqPQLjUmuo7m4ttTuLN4JLDTre1laB5tJiup5+5Zol3c3atqGkWmoXh213QpO5kChTabbF90tNajVd516r2rWYVJpMmjVSfSpVNnVqZT4kJU5UinveiTF9O0okNKdQ/wDw9SdjqaXyQslvdx91ZCTJbypHG0UjRtG0rIqF9yNjbkHGM7uK551l9nd70Zdapb3eu9MX33bNYRpHYa7ptzqF9DqNla30F5baZb3VxdLaiK7j3vMI3GGcIYwWH//Z</t>
+  </si>
+  <si>
+    <t>Trà sữa panda</t>
+  </si>
+  <si>
+    <t>Trà sữa hạnh phúc</t>
+  </si>
+  <si>
+    <t>Hồng trà size L</t>
+  </si>
+  <si>
+    <t>Trà xanh sữa vị nhài</t>
+  </si>
+  <si>
+    <t>Trà sữa socola</t>
+  </si>
+  <si>
+    <t>Trà sữa matcha</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAAGAwEBAAAAAAAAAAAAAAMFBgcICQECBAoL/8QARBAAAQMDAgMEBQgHBgcAAAAAAQIDBAAFEQYhBxIxCBNBURQVImFxCRglMoGVsdYjRVJVkdHwFkJDoeHjYnKCkqLB4v/EABwBAQABBQEBAAAAAAAAAAAAAAAEAQUGBwgCA//EADoRAAIBAwMCAwUHAgYCAwAAAAECAwAEEQUSIRMxBiJBBxRRUpEVMmFxk9PUI4EIobHB0fEWQnKC8P/aAAwDAQACEQMRAD8A+gEnP9f1v5nxrWwAAAHYDA/IVnHw4AwAAAMAAdgBz8f71xVaUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKV1WoNoW4oKKG0la+RClkJBAyEoClEkkJASCVKISASQKtesa1pegWE2paxfW+n2UAy89zII1LclY0B80sz4IjhjDSyN5URjxUuxsLvUrqKzsYHuLiZgqRoMnGQC7k4VI0yC8jlUQcswFWh1jxetWl5r1nTBnzLuHYzSWY8ZTqWmpTMx1Exayptlxtv0GT37SXkqiojTDKUy7GWzXNHif/ABA3jxX3/i+nmOGOKKS0uzHFqd5dIWvmmkhtYXkto3SPT7rqW8rTTWxgmFzHG8U0cW+PDHsWF4tvcaxfRbW6qzQCV7OGOdGto0t2ldBcOzvdxdN1SJbgPG1uXjZZZLF637aOkrdZ4VhNjmW+fcIcJUi8Wa8MPrbenuN25JvK3rPOl6XmMutKmqttjZuVwSQj0lCmZKBH5i8Ye2Tx1qGseH7vSNdu1MMHvF5qFtd3KPFKlirXVra2sVoLbqnYov4ALC3EnXR1umeKO23j4d9gljFDqbTQ6ebZJJunp19ZZVoEkV4pUke7SS8iyGjguLmRoyOn0Z4JFcy2d0x2/LTbtYy9J6kfteprZbYsdufdbNEuUC6W6Uy99Ju9wVXlm6w4MdSyt64r0zId9CmupbcS025N3H7P/wDEp4ks4LBPHGnPf6bMsUMeoJaiz1bDybveZFiZ7fUujA2WhtrW3kMKI7XEl3vinsHjH/DNaT2T6h4XlfTb+WSSZLGe6ivdPliaM9GFdiRz6fLPMqtkzaii9bZsXBMWw7SWtNL66tTV60peYd5tzoBD0VzKm8laQHmVhLzClFC+VLqEE8qsA8px2B4Z8YeHfGFmb3w/qdvqESMUnjQlLm1cO6Bbq1kCz2+8xsYjLGglTDxllINcja94a1vwzdmy1vT57GY8xmRcwzLgHdBMuYpVAYbtjEox2uFYECqKyWrHSlKUpSlKUpSlKUpSlKUpSlKqfTL18cdmWiyQbHcVXhpuPcYd6tbE4yrSlzlucWHLKPTrY47BekKckwH2XORrmXzd2gpx/wATWUuoaXJbw2em37NNbiS21K2S4jktJZkt71YSyl7edrWeUJPEytH3OVyKvGg3ENtqUU1xdXtnEkdwyzWMxikW6jgkmsmkXISeJLuKF2hlDI5ABU1hJxG1jwjtkGLZNF8KtPXTjrqvU9109dNOTZeu4Wn9Iw4MmdabgmXIZ1pGjtIdtj8hLDkAxB6unzXnmmWFLYlc2XTeD7TThbaP4M0JfFeoXN5pd3o4j1S20/S7a2M9lcQuItTjijQ20jsklqIQ9tcyuY40JB6h0m18V3N5Jeav4r1NPBum2Npqdtqka6PPfapPcLb3cMsYfTHdmF1DH1I7jc6XEMEaM8i7lwn7SXGTRkHUCeH2j+H2kb/oKXYLO/ertZHr2YkTUMeVIXMULg5qRr0xuH6K7KSxNmQplxeeiJ9YOoWObQfjH/xpdQs9P8M6VoKaTY2caTrpk+oNZxSzSTe9QtKmrqjCTqM+HMUjs6DqncGrcPgnSdans59c13W9Zh1iS7eK2t9QSyFxNp5hQwYgGnMELZSNWjikgiiWQC34K1r71bq3Q714jNQuGVvkOyr07GYkqVqNiCtaSGZUlqOxqSZzISwsonREPqQGlLkl88/o6IGkmxjDJBpNqGkc26uzasytHE6OB021iTPcKiI7kBjyAyKNgvFqPRIl8QXESR2vWKRvpizBirBUaX7LhILMN0bvCmHVQY1Klzul7FGrLXqWBrCHYLRb7ZZLBG0ulkw4qozztwurd29YJlF2XNdeWFWxp0PKfUXUOtuLJUoIb629iOm6PFLrEmm2Wn2qW1tYW4OnwNab1uTPNKt0gnlMkiS242iZ5GUs0ildxFcVe3R7yNtGS8uLu4lu5NRlk98uBdbDbtapC1uTHGII2jlcEQqiyYAdCU31nXXRFc80pSlKUpSlKUpSlKUpSlKUpSrhcLYi7hra3W1tvvnbpb9S2thoAHvZNx0xeYUZABwCTIfa5QdubHjXwurRr60vLONQ0t3Y3trECA2ZJ7aWNBtJAOXK4BIyeMivUdwtpPa3bnalreWlw7HOAkNzE75x6FAwP4EmsZ+P3Zg15e7lYzG0datExLa00pd1jXZ1zU17uCYcW3ibPeywpDqLfBjttQozSGogDyUuKLixXMviL2f+M7yDTbePQtN0OC2hjSS4GqST6xdypbQ2nVu3WKFUkW0gjU28EZjhw4WQKwFdIeGPaL4Zslv2n1nUNYluHlAtWsUTS7O2aaa4MUCl5CyPdXErvcTSFpSysY1IbOC3FbsrX+PEkQrPZmZEZDMV6XAakKD7rkNJCVJEhwoWoqcU73aXUlCXF45uYpGqtS9jus226G0sbS5tnSJprVZJEld7dhsVTJKiuMkkIHhVckHdg7toaT7V9FuDHLd3c8M++UQXBUNHGJ8Ft7RqZFAOFJCvuAGUA5GFj/Z+1M/eIs6IzcbnKgXNi2iGmEiIzY2JK0R5SSXHV5dER50NhYCUkNPgpU2hC/On+BdU6trPDHPNNbTw2rWpjFqthBcyIl6hbqMpljiecqHO0ABlO8rm+X/tA05IJoXltreK4ga4W4aZ5hevFl4//UNsMiRklCcPuRW2k43AdmThlbeGmipEK3Md2me9GLjrsdMeW96CJDIEociFrUl5yQ4hSiUhD3K0EtBAPXXs/wDDll4d0t7azjKhnQl3QJKxQOh6mAC/nMjqzliRJxgYzyH7RvEl14k1aG4uWU9FJAio5aIdRlLdIfdRSqxDaoGChzlixOSVZ9WvaUpSlKUpSlKUpSlKUpSlKUpVxuEEsQuKfD18nCTq+wx1EnA5ZlxYhqyfLlfOfDGckDepFo226t25wJo84wSAWAJwfgCT/wA1FvlDWdwpxzE/fPwz6c1nFxkYhyZkh51hhcphSwypSEKdY5kkK5BgqQVD6wTgnIznw8+IYxlm2qWUOpJXdgsrbiCeVLBhnGBwBjvmP4edwiIrlVfbuAJAbBBAIHJHHbBHxrX1r2EHVSQGuVRCgSEJSs5ykqSR4lJGAcHYZwDWqrwyGRkPC5Yg7cOck5ZSfunBx9044OPWtnWYBjRwc5x3JZWAYkDBJXjaPTg/jWMS9MwWbivljtAuPJdIS2gKK+dI7xwgDmdAABWsk8oCU4GMRbWKFbguFBZ3csdqjzHgE4UFmBUKGz24PGKn3FxNJGiGXGxdigl+QNxCKA2UTk+VfKMkkDcavDY2UsRFtIbS0lt9aAEnIVlDbhVgAAFSnFKIHn9g2Do4Bgc7Cu2VtuSScFV5wcEZ74IzzWDapnrplix6SnJ9BkhR+QUDA7gH4YFTmrxVtpSlKUpSlKUpSlKUpSlKUpSlVDpGX6BqvTE7PL6FqGyy+by9HuUZ7P2cma9xMVljYc7ZEb49mB+I/wBRXiUbopV+aKRePXKMMZ9M5xn0rLftQau0fwS0prbinxF1PZtEaK0xbp16vGpL4416LbWGUw4UL0gIjybjcJVzSyxHh2yA1Mn3K7T248WJJuDsdtcrX2iU4O0q3ZXPcKpGMhuQvJAB7knnIAteiCTpgJncuB5VLYbI7gZB/DjA7nODXzma8+W97Mj+q7taLJws7RmqrNYb5LtMnVlu0vw5h2OOttplBeeevPEy1vRS5HujXdIvzVpkrck2xLMFS3ZCmteT2cM5jZbi2jM6tJEsi3AklTzHCxrbvK2NjEiNHIVWL7PIDsO066Ryko7e7ttb+ohAcELgMz7C53hfMwPK7dwJYZO8Ae0vwe7WOkmNd8G9SG9W+PIiRNR2u526ZZNT6XuUhgynbZfrBcGos23yEt7RHVtOQJ6EOP2+bLjth9yF9nNZ3MsU6quDtVk2yRN2+5IgZZBkhsbiy7sOsbHme0zmBJljYiRUOx8q4BJYZUnKnB77DnGcsoFZaxWgy13YGAFJ8t8NNJyMb428STkKJJrMdLQJb8AAFicDtwSv+w+mfXNYhftuuCOfKqrk5/E4yRzgk55JHY4wBXpq5VDpSlKUpSlKUpSlKUpSlKUpSld23FNONuoJSttaXEKHVKkKCkkdNwQD1FUIyMfiD9CD/tQ5wcHBxwe+D8cVG+WptF91hwd0TZ7VBZnWy7M8QNUvRX2oMuLIvOkuHU3UWn2pUWbd7AJLCYzV7feat9+t14REZkzLYi4vRVW6TaPaPuFvpknVaCP363aSWJ33bWdYukekkpw/UcKWRk6wjGMhHWvgqdElvleOOTFs6+fumTnchyvmDqgPm+6xIyRtr80jtO8ZuJQ7RKuIevNW6bZ4m6a9Z2bWDkGI3c7fKuSXLpa2Ehi23Cba9QszLB6paTNtcyExDaS0t5pi6xZFxuMjwpotjHo8mmW4uG0y4cTRb90ckSuRKyqZAs0f9VTKFcF/6jxg9EKiX3WNTf3yO+lSA3EcKRyxqyv1ZVDRtI4GVZmQKjHOSF3nzgs29b5BDUHEO9dp6/J1ARFOq+zrqedq62tuX56PMd0lxJ0lb9NX1EmdOulqu6Lau9XuzQZ1skR4rKrreY0GCuOpd0n27VILWBJra23tBb30fQdjb7YXlgV5YWSCOKSFySrmOdJZGBV5HVjsilyXE0wguLjPXltSJY4zKQem5SNt0jSJJgqoLxlY8lwqrkO31tu4DrgT0S4tPTl+oso6eA9nb3Y8aumnpstYsMCCvGOR95ux9Qfj2+FY7csWnlzggNgEEHIwCTx2O4kEHkHg/CulTa+FKUpSlKUpSlZRDsl8RjuL3on7xvv5b2I8R1Bq5jSLo8h7f/7PKPpiFv75x+GfSF79F8kv0j/cp80riP8AvrRP3lffy3Vfse7+e1/Um/jU9+i+SX6R/uU+aVxH/fWifvK+/lun2Pd/Pa/qTfxqe/RfJL9I/wBynzSuI/760T95X38t0+x7v57X9Sb+NT36L5JfpH+5T5pXEf8AfWifvK+/lun2Pd/Pa/qTfxqe/RfJL9I/3KfNK4j/AL60T95X38t0+x7v57X9Sb+NT36L5JfpH+5Vfdsfs72btCcBI3DDU0i0xr/CtdhveldQXCy27U9psGu7BblRYV0k2G9xXIF7tEpt642e72+ZEbNwsV1uMdHokt1l+PH8TWcd1YR20zOpMUW2SN2iZSgDZWRGR0bygBkdTycNkA1G0K5e3uTJEvAlbyuAysjk4DA7lxg4w4Of7mvz8eLnyK/bBsPFbVOn7/2P1cXdParkmTdNZWHi5w5k26+31UJyCnU1q1xf5uldX6St51DIn6sm2afY9MTHLW5FtEly+uMJjOYtb301nbIia6lpPavIIQlpKYVtBP1OhLarLLFcSC1VLaKaRnxJunWKBnJOXTpa3Mgzpa9GSJBIolDSST9LYJllKh4t0hMjRxjZh9rlwG3b3PkuPk9m+wvo3Ud+1q5Y5nGriVA09B1HG05LkXOxaI07p+EgR9LWe9T2WbhdZd0vTs7UuqrgUs25y6SYdls7Bs2nbdOnWi/1Y6hMkUZkeCKWZzJLtR5epIxV+mhChI4ikKZTqFU6suZpHap0VsUi3uAGZI4o0Rt4RUQblSQncNzoWfzAFiwQKgVK3yWrsw8QL/a7Zfot00kxFvdvh3eOzLn3huUyxcozc1luShqwPNIfS28lLqWnnm0rCglxaQFHPrLR7k2ls6NbqskEbqHeVXCuvUUMBC6ggPzhmB+JGKxK4vo+tLmOXIdhwEI4OM/fHfGewr3/ADS+I+30xooZB/WV729xxp07nwxkeZFSvse7+e1/Um/jV8ffovkl+kf7lPml8R9vpjRQyD+sr3t7jjTp3PhjI8yKfY9389r+pN/Gp79F8kv0j/cp80viPt9MaKGQf1le9vccadO58MZHmRT7Hu/ntf1Jv41Pfovkl+kf7lPml8R9vpjRQyD+sr3t7jjTp3PhjI8yKfY9389r+pN/Gp79F8kv0j/cp80viPt9MaKGQf1le9vccadO58MZHmRT7Hu/ntf1Jv41Pfovkl+kf7nf4dhnuR3rPc3UDqkD4p/3KySrZXcXZgnBAT8Vgfgk0pXPraLnBWgHw9sb7Z/ZHSlKjJuURRx3oHvUUgdM/tE/wBpSo6ZLCjgOoyOuTjHxJwKUqMCCMggg9CDkfxFKVbvimhfqaC4lJwmOtHl9RZTscnAI3GTnBH1iDWPeIB/SiOAdsbAAjuPMOMgg4x6/6170YZuLhFx94LjIyo4xnJ9cAc/HPpWuDiBcZLTj6UrURzLAyrGMHl8B7tsdB/nqK+zhySRhmyF4J4b4Px24O7I7jB4rZdnCGUMQcDawyeSSCAcjGMYHp/vmxMKSuRcR3iyUFR3PmVJT1O+5JzuMk+4YjWpbqAKCcgAkE5UnGMY7+bCn68DNfe8+4uSNuSCOcnIwMYHpyO47/hW7XTqo1r05YILzyEGHZbXGwSfZDEFhtI332CQnHgcDGK6Atl221uvPkgiTkYPkjVeRgYPGMYz8cnmtWO26SVs53Sykc58pkbaAcnIC4A/AV7V3y3o2DyVEdQFD8RzA+P8ARr714JCgknAH/XpXjc1LCT9UgHyVvnp0OU4wD4g526UqoIPIroNSMk4DeSfDH/3SlRhei4OZCTjpsEjB2z9b+Z91KV29aOHYBQPmUoIHxwB+NKVw9bXkk8gDidsDI5j5jGBnf3ClKly2ik4UlSD8MfiCOlKV4X4SHMkEgk5yDkc2dyQcnfJGxwOuKUqUPRH2wTklIO6gScDzODkDPwJ8utK8kZySM/AdsfHmpM+/co5Km3CU48jzjz2yeYDrnfAx5GlfLMnB6imMj7+zkHJGCv54HAPB9MVL5GtZ1paLz74S0kcxWpR2xnYAnOcAHPTJHjvSqB5CGbIUBQQTzzkgDhSeSCMntU/v+oY2puHNlvbLyXUyfWjKlp+r3kSdIirxjYbsg4J6Y6ZNWDxC4W2QnsQ47nhhz6euOQfT0PNTNGU++TA485B7cqSuOMHBwG/vn0IrXTxHeSHpHMQCFqJ8tuYY/hgnwAPxxpjUZF84AyRuxyWbzZU53EAZYAjO7jgbQMnaNlGyxgkY3qhA9do7sc//ACyB3P8AerD2iU1IvTDPMlPPKbSN8nLjvKcjGwAIxtt1OOg+OnzrJciNQCWKKjbhyzMAMZHoTyAewJxgV9b1MQlwcBASBjPCr8TnsAT25xjIJyNo0K8z7gsJ9JC2wgDKVEhISMADK+gAIO2dseNdFqNqhfgAPoMVpwqWRcMSzggAju3J5JPAXBP4gcA5ANVRYT73IVKWEkZ6kqVsMfVIxnIz0I3wB1FaosW8DGAMHz8ksc8AL6Y5HcZx61UkW2rCQACADkk9TnY4JxkgDGdzsM5JpUhVCDA+OT+f+dTpiC23uRzHzUPdg+znH8fj1pVQAowBgD/v1qZNRVqwG2lHHT2fPJ2z9ucUqtTFu2OqwXFBA8gcnx8cHHgdx5jY0pU9pSui0oIPeBJTjBKgMAHbqemc4pSpTKTbmwVKV3Zx1RsE4A6g4G/nvvnPlSlUpPnNICgwoLI5h+kTtg9QcZyOg3ABxknrSqE98ckDt259Bn8aoO4Tp60qSlj2egKOhwMk83UjAOSB5DB3yqGXZuGYY/Ln4+ncdsdj3yOxNsL7bbjNQ6FKd7shQ7t1KsYxsAoAAez0GD1yTtur7SEOPK2SPTB5yR6nGMYJ/GpF/aq7aZ0E1o9vTjs5MGdcZrEhiUUczc9wyFtlnuFFJbfW4UnmUHAvcpweaya5Y3d/bdK0aJXBbiVmQHK8FXRJD37hlAwMjJwKlaZPDZ3BluhJsfGOmqO2VbLcF0wDnOQwI7AEE4wj19edd3V95uBw/vyip5JDhlWZpstpcBWCZNxYe9pAISSx0VjIPME6qv8AwT4nuWxHFahcrgi7iGACcgA7WbIOTkHHpjNZ7b+KNGRVMkkvC7dpgk3dhnkAqOcdnOdpzxjNCaN4Y8Wr5eGpMi1RLFCS+24ouSJNzuJQlwKLbcaNEagIKkgp75V0WG1Hn7p4J5VTtG9n+rQ3UM99c2sUcUsbsqM00siq6uy/c2LwCoJZuPNjOBUTUfFmnyW80VrDNI8kTxqXHTVS6Fd5JJY4PmwB3OAcDNbDtDaU1BaozaZsmQ4oJTtIXyIAAHRIUcnbfYnOxBNbirAcIg2vgsQNwG4AHuBnHPf0+FXrgP3KMBzLPL5ISpY2+IAyDzeI3wc0rwGKbtpKkn7pAb1482MEAHg4BI7gGq6g3VvA78KWeUEkkAjGx2A36YJ5seNKlK4YAgHkc57g/D8ecjj86q6FcrcrlAQlK/a3OConJGADsdj4HA69TuqoIYZByD/161PkONKwEKSfIDbPU7DbPiTj7aVWolKVJnbkoHCMEg49kDB/6lc2ceGAAd9zsaUqXOypDmcEpz482Tt03JP8DmlKlrsVbx5lKWc52J5gM7ezvt033+GMUpXlNrT4n7Mn8CPxNKV09Vtk7E/9mT+NKVFFgRIwCwtzO4ykJTjfqSkj+RzSvLIrY3DOM45I7/kR8KjI0bDdB72DGGT/AIgCvtwBuPPO/kfCleelH8v+bf8ANRU6BsnUsNpUOndtIx8CFA7b9BgfClOlH8v+bf8ANdxou3M4LEaMojIBU0lKsEY6jb7MYHTfrSvWxcbccEAYyewJI9c9yTXlc0u0gkiKcJ3KkKHQYO2x2G/iMb4zSqCNB2UdwecnkHI4JI71512hLYxyrCvBKk4/Hpsc++leyAeDXCbYkjOSD7gAPHxzv9g91KVETbSk5TnPgc5/0pSpk0p9lISlSiB+0QrofHpnbbp8cnelKmLNwfRsoZG3jnJznp/dB3BxgnPXIzSler1X/wAf/l/t0pXItQzu6ce4DP8AmKUqMLYwDuVkfHBP2j+VKVGTCjJz+iCs/te0PsB2+2lKjpZaRnlbQM7n2R/7+HTpSlROnSlKUpSlKUpSlK6qSlX1kpV/zAH8RSlQlRY6s5ZRv1wMfhj/AFpSoC7fHOSlBzg4SHChJONgSErKQTsVcqiBvynoX5f/AL/WqjGRnIGRkgAkD1wCVBOOwLAE8EjvWGg418WbTZL25e+B+tr1fWjcZllc01ozVsOxpgvQoc2wQ7giWxd7zLntIltMX+RCiRizcXnbfEtRRZtQzrVjQ1jUo4perpN1NMOo8JgtblYhGUV4Vk3LJK7qGCzsiKBISiIFjneHoVvZV7PtQ1LTV0z2neHdM0xxaW+pJrHiPQLjUmuo7m4ttTuLN4JLDTre1laB5tJiup5+pZol3c3atqGkWmoXh4a8ULTxMgWKbbdMa7tab1Gu7zr130reYVptMmzXSfapVtnXqZb4kJU5Ui3vd0mL37SiQ0p1D/6OrnY6ml8kLJb3cfVWQkyW8qRxtFI0bRtKyKhfcjY25BxjO7iteeMvZ3e+DLrVLe713wxffZs1hGkdhrum3OoX0Oo2VrfQXltplvdXF0tqIruPe8wjcYZwhjBYf//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEEAwEBAAAAAAAAAAAAAAUDBgcJBAgKAgH/xABDEAAABQMDAgIGBwQHCQAAAAABAgMEBQAGEQchMRJBCFEJExQiYXEVGDJVgZXWI0JSsRdikZKh0eMWM3KCosHh4vD/xAAcAQEAAQUBAQAAAAAAAAAAAAAABgIEBQcIAQP/xAA6EQACAQMDAgMFBwIFBQEAAAABAgMABBEFEiETMQYUQRUiUVJxB2GBkZPT1DKhI0LB8PEkJTNDsdH/2gAMAwEAAhEDEQA/APQBWt6nH+/9/d8B2HYUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSrdk7wtKFkmMNMXRbsTMSazRtGxUnNxjCSkHEgdymwQYsXTpJ07WfKMnhGiTdJQ7k7RyVEpzIKgShpEQgMwUsVUAnGS2doHxzg4+hq5isryeKSeC0upoYldpZYbeaWONYwrSPI6IyosaspkZiFQMu4jcM3FVdW1KUpSlKUpSlKUpSlKUpSlKUpSlKUqg5dNmTdZ28cINGrchlF3LlVNBBFMv2jqrKmKmmQO5jGAPjXxuLiC1hlubmaK3t4UaSaeZ1iiijUZZ5JHIREUcszEKo5JAr6wwTXMscFvFJNNKwSKKJS8kjnsqIoLMx9AATWqL0lPpCozww6OTDCwnqqOp94MZeMtmXRbpSC9roRrtozuG5kYk5ipP3LBi+Ka3znc+ymlzFM8RP7CLB/FNN8W2us6rJp9nBIbOIiGe+klSFvMvLPEsMds6M5UrCJFlZ0yZFjMausmzaXh/7NruewuNe1K4toYNPi81FYSRmaPUSIRPFA83UiUJkEXaIH2xDCO7Sop8sGpHicC+5iz7lZ3JdLa6/USrrUNvqO4vCQj9PoxBeRh7Qs4163E6uC8iqnimBVSJTDpYQcqSTtZU6nsUeyvLrS7uS6nlmIRE6MFq9tiWS4lZEadRF1MPBAXkBQmTpzKp3MXLHfnh7xPolnpdhDZWcatMLu81S3uoHtbKxsjJOtnfyTJaL5HUdYuLeIW0iw28VxZeYjMYjjiifcP4GfTgWzDXHCeHTxCpupRlEsLZg4TVNg8M8nmLxaMIRzE3BbThL265IqIUSTT/2hgJOYnxRWTUVt922K4Vi5DplhqMltb7UFxGyyASNIqyqIhGkaBC0j3DyNvZnJQrwpVuCedftLj8Orr2q3OnqdJu+vbm40lUM9vLPciWa7u4biOK1gs4IyYVW2SGVHLtNHIkZKR+l+2rotu8oZncdpT8Nc8BIlOdjNQMkzlot2CahklQQfMVl26hkViHRWIVQTorEOkqUihDFD6EEEgggg4IIIII7gg4IP1rW5BBIIIIOCDwcip2leUpSlKUpSlKUpSlKUpSlKUpSrC1UsC67gs48rbUiBzmKs2VYs1H7hViRNdEhXj9g1auUTOBWWIqw9cZADkTMc5xSKdRDTn2qeFvEusxLfaZqEg06CzlhfS7YXM0klyzhfMy2kKmOd1WZehFMyRMYw02+JWCbM+znX9B0y88pqdmDPLdRyi9ma3ijEYTIgjuJCskCMYis7JuZlkKxlJdhOkPxY6ca76k2XesUtpnfEowty2pVlGOI23oe6XkZJzLF0xLMMHTOZiEF3P7GMNKulmpTto4jl2tFtFm5YtTTHhHR/Ed/rmX0i/juLHWLC+uJ7uWEBbKNoJpYb3UUQLdyXLWywzJawRpCVFxLGpCiLpe31Lwrp1tAINd0eBtUtJbaJVeRCZtsixm1sXD+W6KyyeXd3uDM5ito3cEmTRzIeEvW4l9zzX+iJrcp7ktALquyBtuGuy67pseCRbTQPnjFO0HD+8HILoSsYrOW25i5BSWWWaKxjN+4BdUetZIHhiXT7O4tnmjcT9RJoJoQNqAxASTzSwkRlmNy8nUkYncJHVWWKt4j0uS4ufE3iOzngsJrQ6asV0t5bXRlHXxem4toILbUVlmjVRoixS2dvGrdCSG3uLiF8AtPRr+J29r1tF2GmupsTcup4XorbDaa0n1CYSjSAtR44O6uqYgpW3oGVYRRohKSVZQn0U4uaYQin5ImCkY4qLo0hi1S1tdMVQ0LJEhjlEVzFIEkiZY3iRw8qySSOH/9mFYYkaMnC8/alH7S8TX+py3v+JJM8ls93CsQkiuFaSGRgEs47cQxNAu8IiqrKm11HVb0Q+hY078Seht031oHN2xcJ7UTkHk3qjFztqXjCQGkl4M0mMW3Xib9f29H6ZSTy4ov6FeS9oQ91Tt6qNFm864jyNoyRK09uSLgx9Ha294hDcRAC08u5cnq7gJkdAo2yFfL7eA244WMXbWogkubmeQXRQuyyPHLPNOVQEJHCXyhJZ0Z9khIKOoADn0OVZVjqUpSlKUpSlKUpSlKUpSlKUpVgaqzb2I09mW8YgdSTmnsXDsXCYqAqxVeC7SO5bigdJyDpRAyrNudFQATO79YsU6JDhUC+0d54vDNw9r1BctPDbwSRMyvE1xuQujIQyybdyIwIwXJOVyDPvs3tra58T24vNjWsEE11PFIEaOdbco4jkSTMbRq+yd9yklYSqe84zpm8VfiG8XdgNo+XtLVu9bPeKqPAZWyn7QVk+dxbRqutLihKs1mz2IkzOmhHrVusVi5WXFeM9gIRY5IT4F8cX1nDJaa/LqEV2blHglkmuGWdZFSTIWWURKuSDthVYwxwsYJxW/tX+zvw3qcSXGjabpd1GkIM7dG1LRrIJEjXzFti4WaEo6KsiCQLGVmc8McBaB+OfxJGvuxdSNRPFlp9Fxd1XM7tbULTFeDnFHVl6dN3Doq8/ES7+PZA5mV/oAqaR2t4ScvGmnGMorGyRk30e23bDqsdyshlvJjbtbPMZJEWResEZokYICyAknkjGAM4bax1HrHhS4gb2Za+HVuLqK4Xy4iuVigk3DLPteRFmAIG+FlUNkgsMbTvWR1kvkl5f00Or/hDaOxru19OLFQsfVWVuFlekvqI6tW3YSD1ft0LYll2N6xqzt3e0LOW0nELCylY21puSXL7eurH2vDdQyWfWvT5d7m/dxbxwosEKlmaBonVlByFlWcOSAjAgrxFb7Q3sGiE2nQRXl1lDDcrjbKbiVXaBSBG8CdLpRlTgbX25QBlx1oTcGudzXQ7Su+3NRoe1I96aTnzaiMW7RyxvRpbLeCuWLjXC15XE8dwx7tfPmMASNRNBDHWirMEkZxWbbXJKZ+3khuTf3kUvULJbw28ZuGZljjMRDmHHSQtERuVSMS9Z3QPIDUd1OGO3is7ZhbC5jMhla2hAiZGldlxKFXe5MZYyNwUeOJMJBGtdxK+9YulKUpSlKUpSlKUpSlKUpSlKVLxUJGT5XrKTaEdJIJs5JHqOomKThhKMFm6hTJHIcelf1fWTqFNVPrTWIokY5DYnXbaO50m9WSNZOkkU6B84WSK4h2v7pBIG7BHIYEowKsRWS0e8mstUtJIZjEZDLA+NuXjlidWQBuNxXJT1VwrjBUGsE3P4MtPrpvRG5ivXLJohbUpAR0A4YR86yh5B+k/I1uaHWmk3rhnNRq0ku+aO+o7pB6gzFq5atm4t1NIXGiRxalbX6yOkUSyKtpxKjMWd1dZJS7LL7wJkIB4UDhdtdEWHjTUzos2ktFDLNPcQzve5eKeWNEhVrWZbV4g1tIsaI8QWNWUsT75Eq4HtX0UKsKtZ6jTUyCuE8TeTm8paXuyxWUnPpSix486DyGfPHMg89azTiI5dgk/fqFi5frmmavtKREzW0txrMVxaNaa1dRQQyMbiFmLLcISEYSKGOWaNWiwSAMl0YcVnW8W6TcWt9FeaDHJPNbRwWckc5AttoPHMShVLu7OYwOpGogdXjPHZvSnwCStn6bwmnOqWsCup1pW+d7cEcyJaEfb8zEagpzbuRty/bdvFu9cXbE3DAMHrlo1kTSj2UIdVE0bIxDZs4bSc+0vXVjtZ0ezju7mUyDzEzzqBGR/wCMxpL0yWY5LHBJCkbduG1P4knfUdSW5tGl005iQxLIsyNEkfTaNt0QXDEKAFVVGGZw7MCMkG0ntfT2W1Au2IfXdIT2pFwM308rcl5XJcjRqk1Vln7GLgYuWkXMZAxLBzJSJmTaNaIqoouisPXnjWEY0Yyfw/dXF0HSQqqW0RiiSONVRN0uXchcbnlKDLuWYbcZJOag/iIJH5eNUiUlzvdVAeUrEo97knAXGQu2M8blLnJ4dSmoxSlKUpSlKUpSlKUpSlKUpSlKua1TiWQXKA49ayVIIZxkCrN1hD4/7oBx3x2xVtejdYahHz79nKOACco0cucHPIEZI479yODX0gbZdWbAgFbqIgntkhkGfxf4gZ78VlCPQIddMpMCYokEQ5HAhyICbIBgAHGBzkNhrTWpABv6SyrgdmAO0NjlQxHGPTvxzya3Jp7qc5G7CjAJII91AcAjK8jnGM45rM0KzAEiCAYDpAB779wyOwZHOduA7bBWBKkt6AbgcnsACD6ZJx9OcffV9I6ohLMoOOCSMge9zj1/p7EVNyDchmS+QHqKkbgRDOS4N57YANgx+AVl7STpxMu33n7FgOFyM4BB78DnaR3Ge9YC4Uyy7tzcOSdhJOQS3JBO7DHGMY7HHu5rq3qIYUyNUf3VHKihRyGf2SYAIDt29cHfv8BCtkeFYyttO5IO+ZBngZ/w3kK4znILhsY5HPYCoV4kfddQoAcKjsSQMA7lTPGe/I5I7cCsWVLajtKUpSlKUpSlKUpSlKUpSlKUqdts2JdABz0mQegIAOBHpZOFCh/fIUe3HIVS4JiuFABDWl2Cc9gIHY45GSQp+JOMDkivC2wxtx7s0Dc49JUGASOMgkcfH14rHHiK8Tel/hBsxrfupchJi6uecTtawbPtSGC579vu8HZGrWMgLXgEvVuJBVdo2BeRePnrGCiwXF3NSbIyjUy2sYdKuNXubmKIRrHFGZri6uHMVtbxKuZJJZMkLzkKoVpHwdisqsy7MbUIdLjillMrmdligggUzXE0sgACRIp94nA3F2EanGWQkA9GLW9NmM1MOQT8L18JWtCSKzV07ktTLOtq6Y54mhezhSCeRd5xNp2Ka5D23ZlyT7BQdTVLRlGwQbSFut9KyZGY3J8I2qKi+14zLMm9BFYS3EMsQNqOtG9rNPP0urdQxMrWyTJIHMsKRq7i2fX7qYn/ALdJGkL7D1byKBxIwnIhZZ44ojKI4pJQUndJF29F5X2rW3jw6+KXTXxUafmujTF69I+iyx6F72bdrH6EvyzHsmk4WSaT8EVwqmkiv7M8bxkvGO5W3pJzGyzWNmHzmHkk2+FvNKk0yREmMbxyMywXNuxkt5NuFcoxCtkMSzJIkcuCDsVSpP2tL9bxS0Ybei4mhlykqbg5AbBKDKhhuQuuVK7mZWAhNTD4kmiORACFdKgXPugCp0SgIfEfUiA84AA44qf+HFVdPjIGTJPIS3blIowOMZPBI5P0qIa67NfkEAARKQR65eQHjJxyv96xnUirDUpSlKUpSlKUpSlKUpSlKUpSpu3BKE0xKbOFDqobc9ThusgXAd/eUDbvxVJbZufbuAhuFJz2EkLxkYyMlgxAP+U814Y+qVjzjdJGM/DEin/Tv2HrWkP0ylkaq3ZqnZ8vYL1JjKaUaASepunUm7kDM2ltXjD6owxLjulf2i+7MbNI2NAungT86xZXpNQjVVisjbKzddRckY0K7sbW3khvELwajqpsrtNqv5iCSyfZbgraXLCR0W76Ucj2sUvvqZckAy/Voby4lWa1ZEms7BLm3cuI+lcR3ESGX3rmELGm633yRpcSRkqVi3YNeRZz4htdbS8Utw67zOotrMtXGMHf+nt/oOnTp42Wvedsy5bHvGGSgGF1PjyR7ruOWlp5zdNrPkdOmV4S724GreKiUG0Kfay6Lok2i22jxwTezf8ApL21bpGPZDayxXlpGrtErKtukMVuizg3bQJtdnYyS1rs6rqcWqS6lLLB59etayozBwZDHJb3TbBKwcyO8s7dEi0SfcUVcLEfYf6JC/NVrn1+0xuTUlCLhdSdSPDpqKOqNuphfzaXloi3b5ZKx99mNeE1Px98RYXOMezDUO1XyVrNbguu4rSt9n6lJ9JzGnNdt7KC01C0sGeWwtdStGs5C1oYoHkgizZhbeKBrRxG8j+VuENw0cUc0kpLdNNhaPNdSXFrPdBI7q5tp+vGvWEjoskjLIrSO4mQuqK0sbpArkxxqBhpd4Gpp+q4UkwDZOPS33yIncOTDz5bY2wIbgI52zuhR7NOtyGzvMjsMd8uyDn05Qnj4/gMLq7h9QuMDlCsZ5BBwofgj4b8H0+HrWOqzNY2lKUpSlKUpSu0X1StR/vqyfzKd/TdZT2Rd+j234ySg/jiBh/c/wClWXnovkl/KP8Acp9UrUf76sn8ynf03T2Pd/Pa/qTfxqeei+SX8o/3KfVK1H++rJ/Mp39N09j3fz2v6k38annovkl/KP8Acp9UrUf76sn8ynf03T2Pd/Pa/qTfxqeei+SX8o/3KfVK1H++rJ/Mp39N09j3fz2v6k38annovkl/KP8Acqq38LuoMKuhLry9nqIRayUgsm3kJo66iLM5V1U0SqW+kmZU5EzFTKdVMhjCAGOUBEwUSaRdCNyz2xAUkhZJSTgegMCg/eCwBHfjiqkvYi6DZLy6+iY/qHfEgOPjj09D2rXf6QLwcPfFvpAgSxTWmx1w04Qut/pPJ3pGtZK3HK122+vA3HbEqs5j5RWDRm0yRMvC3TGslJW0r3tazrnbFcIRDqOfam0/Vk0u/kjuTObC4eHzYgkkWUG3uRNE4CPGsqBkMc1u3+HPbzTxOCXBXaE+mSahYK1t0vO26y+X6wBVhNCEdA7K/RYkLJFKqlo54434AbPknH0a8hHX/qLpVqJ6PfxpSbG4njuUg7itjTCcu/UgNRXEZqEMCCmvcOS59IZixG045QUvh3AyNs25Ix6+l7l26RlYS93t1T2bxFqEkVneWHibQUliZY545bjo6cbMS2QmCaYzx30d4YRttmlWWZZPOKSY7i1W3hw0a0je8t7rQ9W2MA8Mgt2mvjcFJxDuvgHgkiaQF7gQtDE6SWrAs8Vy8vrp9G34Hrh8NUDd2rWqEY7tvUnUmJiomF0zdTlt3KOjtnlQYTFxwK81ZkNBWtIXLfV8JObqudOBZu4KAZMrSsyAk5GMtYki/wBdazq4vDbWNtKk8VvIXlvY45o1vJQ8iwsiTS3FwEt7dhCHkkLzyNNcMFad8yvS7Brd5rmVXQyIFhgmaOV7eMKHlV3jAQvLKDIQqlYlKxoSFwNhUj4fb1v5VK5omStlqweIgkgjJvZRF4HsiqrZUTptIR4iBTLJqCmJXBxMQQMYCGESBs/RNKuJNJsJI3gCvbqQsjyBhl3bukLg53fdjHaoHqt6i6jeBlkJWbbgBOAqIvcuPUH4/lgmP+qVqP8AfVk/mU7+m6yvse7+e1/Um/jVj/PRfJL+Uf7lPqlaj/fVk/mU7+m6ex7v57X9Sb+NTz0XyS/lH+5T6pWo/wB9WT+ZTv6bp7Hu/ntf1Jv41PPRfJL+Uf7lPqlaj/fVk/mU7+m6ex7v57X9Sb+NTz0XyS/lH+5T6pWo/wB9WT+ZTv6bp7Hu/ntf1Jv41PPRfJL+Uf7ld9hlQDkoB8y/6lSSsZVQJVAc5wXH8RwD+RRpSn0s1zgTkAe3vhvtn+EOKUqsWSaGHHrQD4mEoBxn+IR/sAaUrkFcoHHBVSD+OA79xwHalK+XKYOGrhIMGBZBZLbAgPWmYmNth5xXhzg454xTsQfgQfyP+ta6GqnqlxDgSqmAwCGA5HIbY3AShkBENwxmuY9Wyt1IpAyXcMrDODvkb6ZBGOQfpnGN+6OweGN+PeQge9nsEyR6Enu20AA59KyrDOymIT3g6gxkRwORxzjI42HYP6vI4qNsSrDAbJfHPukEkkn1x8cZ5FZa5TqLkEnBGcKCSpBDHtkEKRkKeccE965s06EWo5EDGMAgADgBDBTCIe6GMhuP4c8Vk7di7RNyMsCOTnGfVs57fcMDg5rEOirvznO11AOCOO57HOcZwT6/hXYWxVW7GzrfSWWIQ3sCapgH3cC5Oo4353EVO3OQ27103o0fS0rT0xtxaQMQARgum88EAj+rBGByM4Ga0hqTB9QvWHY3U+Ox7SMPQkenxNT6k7Hk29cUR7h1AHlwIZAf/vOsnViSFBJOAP8Aj0riKXKyKHumD8dwHjgQEuMZ3yA5+FK9BB5FfAXIiI4BPIj2x/70pVYJoVA6iFHHGwFDA7Z+1/mPwpSvr6UUHYAMA+YlIIB88AH86UotGqlyKeFC44/e+XbPnx8OaUqNOkJRwYpiD8sfzAQ4pSuCuyIpkQEQERzkByHVncRAcjvkQ2HAc4pSohZoumAjkRKA7mARHAeY4HIBn5CPlzSqSM5JGfgO2PjzUKuvJN901TCUoAIYAesPMcAOBxzkA2ztwOFfLc4w29THjltuCDkjBH1x2B4POO9cBxej+JTFddwAIkDIibcoYztgRyOwb9siAdgpVIaYgkMMAA8gZOW2jHGB2Oc/DjuK6hOHpQkXgpG29rW6TBjHQKphIIAPICGM752HjiuZ9cwupX0XKtBdXKlcYBKyuQfhnBIJ7Z5HeugtBw1lZupG1rWBsHkjdGoJyGIyOxAz6gHvm/4aRASp74EeMZxuUBDvt8y/vDjfNRedPfwuQFwcYOGyCMhj9fie331IMHOODkehBBDDPBBxgg9wakJqRD1JQKOAMAG5AciJcAJsCAgA7DkDbhzmsnZcyQ5zy2MgZOSxAGMH457en41ib0FBKwAG0MpHYMSHO7ZtBHJA/wAoODy2Bi/YeSerINWxHHUig1RSL0mH3CJplIUADq7AXHHH4V1JZxmG0toiADHBEhA7AqigjPrg+vr3ye9c83hRpZ3znfPMUP3GVj/lJHK9s8jsfezV5tWbhboETqAQQz9oRE3l9kQAAHO+Md8AHIXNfFULqAMBcH3u5Y54AX0xz6jOPWrkaxxwKGwgADkTG5HOw7jjIgAYyOR2DORGlfdVCDA+OT9f71MoMU09xDqHzMHwwPu5x/b8+aV6AFGAMAf8+tSSTU5sAmkYcce755HbP45xSvakE4xY2BOIEAewbiHPPl27DzvilKnqUr4OUggPrAKJcYETAGAAduR4znFKVEuixyYCYxvVjjkmwFwAcgOA3899858qUq1H75IgGBAwHEOoP2hdsDyA4zkOA3AAHGRHmleE98ckDt259Bn76sORfSBymAqA9PYU+BAAyI9XIhjnAeQYHuqzLs3DMMfTn4+ncdsdj3yOxOL56NkXxFimMqBBKYATVAcYEogGDAAYDAYD3R3Hkcbq+0hDj3WyR6YPOSPU4xjBP311jnpJpbsiszuN0W31PaVfZnEqoSOYvkPWCZM7GReeqYuh6DEFRFFwZwgOSLpEHceffFmj6jaavfyvbTSW09w80E8cckkbpIrMVDKGKsoYgo2SMYHoTvTwrf2VzptjFDcRm4gtkhmgMiiRGjjVWJTI3KSu4P73GB7owKuSMuOBI3I4JcEOVv05F0aTZGbgUAHpEVSOATAudhN1YAQERyA4CDGGXcV6b53Y/pPc4ODxgHkEj0yM1LsDBbjbtz/UMEEc+9njj8fTvUmF0W3KmIyi59jPSBxIVOOt1wnOPxUOUxkxctow7n2Fr9jrevjNWiJRA6zghDFNWc0nStTvriCGzs5nlLrh2hZIIxvGXkkYKgRMZYgknaRjJwY7q15a2cU0t5cJGnTfarOvVIwQqrHwWYnuqqSedwA4rIdmWxcUcl1vXDlUTD6zpWMBCE6hE3SUAHG2cBx5CG1dOqCFUHuFAP1A5rn0tHliSX3N2wVwBnknuSePQnJ59TWaGDiSblKBzZLt9ggmDYQ33AAznPcByADncRqqqQSm4qSvIypAYgZOBnGDgH0H1q+mMoQMA4KcxukBNkQKYNgAfdAMj8RE2O9KuVcMAQDyOc9wfh9/ORx9au5lJRxukAIUp/e3EQEwjngAHYdhDgcBzzSvQQwyDkH/AI9aniKJGwBDFHyANs8jsG2e4jj8aV7VSlKhlZIwDgmBEBx7oBgf+Y3VnHbAAA77jsNKVHKunCmcCJc9+rI7cbiI/wBg5pSo1VsZY3UY5++wiAgGccbhjPf/AAwAUpXFGLIPJtvIBEf5h/MaUr4+i0xHYR/uZH+dKVUCAIvjKCimfs+70gPPOw52+G3eleEA9xX2ax412mok7i2SqSoCRRFymmsmoUwYEDpmKIGKPcBAch5htSqRGqnKggjOCGYEZGODnjj1q01PDxo+4cC7dad2Qq6E5VBcDacAdYVCjkpxVVjzqdRTAAlMBuoBDICA4r4+Wtg28W9uH77hDErZJBzkKDnI71c+ZusBfNXW0ZwPMz4Gcg4HU44JHHYEgYq8GtgQsaiVGNjo5simXpIgg1SbJkDbYhUSETL57EKGAAK+iqqDaiqoyThVCjJ9eAMmvg46hJcs5OMl3dicZxkliSeTznJ9c4FfJ7ZTTEBBqIYz7yZurjfuA9s8YDGeQCqqpEaDsP7n/wDa45ogqYCHQcB7AYogHbz+fbvtSqyAeDX4WMKIZERz+Hy5zvt5B8KUqoWNEo5LnPYc5/8AFKVJJGXRKBSmMIB/EIG4Hvxnbbj55HelKkUZBcmxgyG3fORznj90B3AcYEc85DNKVyvov+v/ANX+nSlfoRQZ3VHHwAM/4hSlVgjEAHcTiHzwI/iH+VKVWKybFz+yA2f4veD8AHb8aUquVFImelMgZ3H3Q/7/AC44pSqnHFKUpSlKUpSlKV8mKU32ilN/xAA/zClKpGbNzZ6kib4zgMcfLHl2pSqB49uORKQc4HBQUEhRHGwCIFOJQEdhN0mEA36R4F9P9/8A2vRjIzkDIyQASB64BKgnHYFgCeCR3rpoGterMTCTak3ofe01OpDIvIVS2rMu1nBlYrMmb2AZyBHaEvMu36RHaSE+4ZNGwoyKyse0ihJDXC+io0NY1KOKXq6TdTTDqPCYLW5WIRlFeFZNyySu6hgs7IigSEoiBY53h6Fb7Kvs+1DUtNXTPtO8O6Zpji0t9STWPEegXGpNdR3NxbancWbwSWGnW9rK0DzaTFdTz9SzRLu5u1bUNItNQzDprqhE6mMIJ7G2xfcWWabS6yq0vasyyiYlzDSj+KdRr6aeR7RkZ8ZxHreqK19ekYRBIypF/wBnWTsdTS+SFkt7uPqrISZLeVI42ikaNo2lZFQvuRsbcg4xndxWvPGX2d3vgy61S3u9d8MX3s2awjSOw13TbnUL6HUbK1voLy20y3uri6W1EV3HveYRuMM4QxgsP//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAAGAwEAAAAAAAAAAAAAAAMFBwgJCgIEBgH/xABCEAABBAEDAgMDCQYDBwUAAAABAgMEBREABiEHEhMxQQgiURQVGFVhcYGV1gkWIzJSsRdCkSQzYsHR4eOCkqGi4v/EAB0BAQACAgMBAQAAAAAAAAAAAAAHCAYJAQIFBAP/xABBEQACAgIBAgQDAwgIBAcAAAABAgMEABEFEiEGBxMxFCJBFVFSCCMyYXGB0dORkpOhosHU8RYksfAXJSYnM0JE/9oADAMBAAIRAxEAPwDYA1G+Zx/3/wB/q+4ew9hjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMZSjd3VCDTok19QhuTfGx+aIDdg7CgwpE9slMpLap1jXOyERXh8jX4OVrlLKojc1uNJCIr8V+afDcDHylSu7SctRkjqhZa7tTS1KsjdLuZa3qrAYyk6xSB1ZiE9RopFXOPD3gq9yslOe1HIvHTwyWpDWJktfDKFCSKqxSqhkMivH6g6WjBLFOtCbEeontx7Z6M1dlO3/1B23VToVS/utUeHY1I3FuOB8pXBara+FcPW+3okxm1MWlVCkTKaEqVOrodVaCzky4ceMfCc3mn4i5Y3uMtwvLyS1LfIyDkqtjhuO42abStHStytA0scSo4igkSUCeKtXf1HsyiTee8MeEON431JobKVq078fWSWpbSaXkfTMrq1qtHHO8Uiq0izNFYb81JYni9ER9XsugP7TX2YOtE+h2lY9RtqbN6gbkkqiUNHaWzbdVuCV8jiTxAptyLzQSrhhqfFhyK1m2kCTZLQxSS7dEiOtdm6tbnIYZPtmnUgsRzSxk8dcF+pJDG3TFZjk9KGZfXGmaCWFZITvqJUg5BvJQcbHMjcPat3KckMTFrlP4OzBZZC01V4llmjkER0UnikKSIykqp7tkT1+wIYbB2D/t9c8zGucY0xjTGNMY0xjTGNMY0xjTGNMZS3rHP3rR7PbtdoMSSovWLk6XEjl9UeDUwm5s5L764E2NXNqiPOyRJWpqaUQ3jAQ54ch6NHvmVyXiTieAW74e6EKSzy37BhklaGlUg9aY9YiljqqwYMZ23Oqxs1aOQpK0Wd+X3F8Hy/NtU5p9r6UK1oTIE9WxZmMMREayxzWWV1CiBdxOZFSY/OivjH3JeTIPTOw3ZUVk6U9Id3TWKrayQ3Bg3Tfi00ZMFwNWsRuymzLBlx1aqPwZbEmQ1Vz3pEp99DtMjbavw/EW3ha1Z5bkb8k9i+8skY6rdaJRB8Q8zSwqIY5JZRAeiw7rYLqZSbfV+NrHnLPHtNFHBTo0CjIpLx9EFiZvVKRK1ciKw6ASTdBjVZoI0IUx63Xt/bJ2zS79qly6LdUTffUmNt2uq2dyboVtna/TmJSz511JkrjSqK9fvK7ce0HhA2+I86sTGtrefYIjyXDDrLS33kf4hTneJu8SRXRuLaD4T0OiKaOtZlay6WZWVDdkG0KWgi9SuhkVh0dcN+cHEniRx3NLL8RX5G3Ya6H9aaGW7VrQwV3gaPR42Ah5YrVdpy3TGqKok6mjxbRLBey980e6LTcLu7rmFf8A7zfI4LjKbFL5upNk2ncLEuJGds2LZgLvI0mDa/wo8hTsyIw3YPSBPjV4XgaIn9IdBKACQbXpOpO56l6Nhx1d+/b61u+1bqX0mVFKo7FYJ29WqEZkdlSNdxrC4k6XjUqT6kmiC7Zs+fsb/wBof1Xn9Q+nHsmb1r7vqxt/fdFOumd3VrNpY2fS/eM++t59mvdF9c39mzYbPmNuBi3djitbodyNPGtizW5swuea/EO3QK7yyyN1u4m0DGDJJqMlVP5uKMRESsSeltSsWUu3Fy7HIZbDrBEVIXoqxiKCTpWJA8MZb5ZZX9QyQrodSFoVIfoTac142dMaYxpjGmMaYxpjGmMaYxpjGmMoP7RMq8r9gix2/bWdPOjWrKFyquZIhPmK9Cn+Ila2HWg6yHW2FKYeKmnCE5ScZET+cd23xvhI3adu1TeO9CkslWeSFmjkimXpk6GUOhcICjqysekEaGjLnkvXo3fFzUr9Gtfin4+VkhtQRTqJo7FYI6CRW6HCu4606XVS2mA3vFvedSOqqZUtFg1VbjrFuRlVsux2ftGzkh+MvxGJMx2XRyJLj7agksuIkpkNFv3Chfvao5d8ZzWHU2rtCZlcqr2+M4yZ1Cg7IllqtN1/Lv1GkZuoMwOwSLz1fBPDCFTUr2qbtG/qxVOT5WsgVwSyrEtoIFJA+QR6O9BSMsw9oC7st9sXuxG+n3THc0i8Ya8bcVx0/wBuuV1LIU0UNGyr1Vnyay8DwUtsx3EJw4pCXiUJ1Knl34qg461W5KWPiq6Q2A4jrVa8c9rZQkwPGAIAys4MoG1XbptgpzB/G3gdr3Ey1K9rklMsMsDR2b9uWFECtppEeTcwVxsQsxDHt8p98RVnuTqd0r3/AG+2NvbS6DVdxSBTZttr+zz0TU4tL8ZLnuyp2xZ0qEsNyXGXVsSGnCl5xCnXUrCNX78L8/W5zjK16BEhE4P5mSOJ5B0u0ZPW6gyKCgIcgbA1skHKJeLPCtvg+UmoytLYaH02WxGHRSrxpKGaNTuKQdfQULb7KVLKRmSv9j51G6s9TfbC2+d57ss51PUbb3nOVRVqY1HtdKGNu2MCv8TbtBFqqH/ZHZ7CoiDXqEF5KUsFBKde1yssS8db9E+l6npI5jX0w4eRDohekso6dFNH33rpDHMeStNGsbzAsqjcZdSxRjoDoZgdNrZbRHcd9lRm2zrEc740xjTGNMY0xjTGNMY0xjTGNMZSfrbGVJ6c3YQApTSoboBISD/tTbfKiOP959mf5eQSDEnneu/Lrmm76iNaQkfpD/mI0HT2P1cbI79II9idSx5Jt/7h8RH9ZorcajWyWEJmAA2CT+aPYAk/d22MXNjaV095VDWqDM5CykOqYLoStQ7FnCT/ABFFR7kEqQQpPcFeetXHNeokbTTkmBWPyFyrMAWcAk9lJOtDufqN6JGznieMlhX4mwpkjJDFN9taB7dS6HYbYnWtH33rPI7p6a71lVD8bb8eGJ9lGfiSrKdGZU462oDukONKfZLa/B72kOB1ZStTa1Jc5QevhTxjBw94vYsP8GrdS1VDlYiWXYhYdQ7MQde2gRtNBh25Olw175rKSK8ZUr6DoVYKSCsg6dSFv0T2CgAbGhrMZnVX2I98MW1CxszbEz56s3JC7aWpxchElE8Ox1SH3lLKB4TinFtqUFI70tLKVeGW9Xo8p/PziTDdn5nk4Vq1oglOA9MDoUQ/IigqSvQVCkDY0x7Fu9bfNryzp8lNQTgaKwGaZpuQsj86BoroTBmYerH1O4A0WVye6qEGVz9mF7Hz/Qm/td4Xr0Bzcru3Z1LIagBwsx2nnaR4+KX0d3y91wPqkOtdqQ2lLaFFDjiVS54B81/+PvEfMUKfqHjq1R7SNIVYlxZijUIAT0xBHTpIJYsSrlierIH82/CfGeGvC/BCCALbazDE8oVkLt8PYeSVwxJMknSd7AAB0AAFBzR6mDK7Y0xjTGNMY0xjTGNMY0xjTGNMZTfq9EXO6bbtit93iLr2nEdpwoLjzoshKkn0ILXPllOQSAciPfNSsLXgDxMhAbooCUAqD3hsQShu+9BQhJ7HY2CDkk+UFsUvMnwpOxHR8fLCwJ0CLFOzAAe4+smh37EgjZABxL7m2y5WWEdquedYk+IhUmW24tD6nXD3KPiJPdhIB7QMAcYUpSgdaquUmG7RsRF416vTXp3H+kVDKD8q99jffZLd97B2vcHfSzCfVCsrRkrCSo30KN9QYgjYBOiPb3G/f0j87cNZUvTGxKXWsFAVLkOqX8ocSMuOeOrJLiFHt5ygBRCEjkaw6CtWtWUicASyEDojVPlBI6QVAJA1vRA7AnfsNfpKkEsyqFVZZGJEcelCRjsCUQEgD6uV7neyPpFqLi/3A8qwakJaRDghgOyHO3AbLikqHaFealjtwAfu1mNGtVoxGPpLFnJ/NjW96AHsp7E/UN+rQzy7FenEDFIqu7ydYATZLEkaGgu+kKQfcEHZ7ZeZ7KxmrjbkXOcDzyCwFOBXcnukFxQKCQDhSIwJJ59MfG6X5LVRVn8SW1XQWrTgVta+WeV5SNbI/SrkHXcld712ylX5VcsSR+GK8WgJLdqbXSFJSvFDGpIGt9Bs9I7HQbXbYy7vVxcp7jTGNMY0xjTGNMY0xjTGNMY0xkg3UwmTtncDSiAPmaycyoZAUzEdeTkf5vebGE+ajwCCcjGPGlcWvCPiWAgt18JyRAA6iWSrLIul0dnqQdtHeZN4LsGr4t8Nzjq+XmuOUhddRWSzHEwG+2yrkfT37EHuMOPXqS90Eo7Hqzvq4ro22HXksxGI0aVc278+dHS5VVNXTRojtnYWk6JAW98kr25S0NtzLCaWYsJ6UzrOpeG7XjPmU8KcTSexykqGxIWcVqkEHUpls27TyrBXqwyyoryygFi0Vaus888MbbNK3jTw7wPCzchyFiWjFUR41lWEWJ7VlSIkrVYY0ksWp7AVtRRjpX5p5mihjlkWic/2tI3UWvNBSdKd6wNu7dtlVs92Tc7SguNOgNRlz5FmuWdirgvPTUxIs1W+FVkmS/AkIlpgpn2EXI6vkHZ4eSK1N4v8NtcvU/iFrw1OWspI4DSyVokEC8sZUigeeaseHWwiRupgaYrGMJg84DDyFy4vhvlp0jsGI2LNulBNXraXpkG5JOOcFpQkc68oYGkKkSJEplN6fs7XuyeqezHWNstrj3EOFBe3Ntzc1eK3dm3DMaLzK5MJpb8KTHccafiIsKydZVXznAtadU752p7WDFj3xZ4M5nwjyyxc0FeK4ZW47kOLlNni7grt6cqw2DEH9SN2SR4J4qs6QzQTmH0LNeST3K3mFV8TBb/GtLE1dozaqWgIrUSzl3jMsXrshRwrIJIXmhEqyResJYnRbsfZ3pZFMd8tvJPYqxqmmnCnsC/BZnqcCQPd7Ul9KSUgAnIyccXT/Jeg/wDTnM22Uo0t2rABojqNeGxIwPc9LD4kEgk9io7EECsP5TnJJc5TwnEmvzfG8hM2j1f/ADzVI1B2WbqHwzHZ7nrPc7IFyurSZV3GmMaYxpjGmMaYxpjGmMaYxpjJdcRzLqbSKOTJrp0cenL0Z1sc8eqvjr4OViE/F8jAfaajbiI1vYkgkQjWiTvq17H9mepwc/wvNcRa3r4blOPsb7dvQtwy/XQ/+nf/AD9s1/fbe29vffn+FO3bE13gbd2d1e3kyytx4tWNts+n2jZ7QlT4v7y7R8disTEnrtRWXR3Cav5d801d00qyqpdCvK3l+M4rlvGU7mVLNnkvCfCRyldNHU5K9y1K2sTLx3KBXkV6scRsV1pGwYo7dygHiuR3w8xOMjnh4GbiiXrpHz3IzQyErEt+olG3FIGS3UZ40kNiaRY3edYPVEVewnXGcG24N/dV9te0BW9Rty7321A6l9OZEiJvV9Dj82GbtcywqZSEQaa9ko3axe7cbp25ErZUurjRIiIzTzVHLrUW8u0lHhfDFnwpDwVKpZHhvl64ejEtWSF6lUsLESl7NZZIDDP1WYkvpM7zSSMnxCuYY4Hvc3zi89LzN+xC3M0pmWyWYOliwB6LtIkUjRyCWELAz1GgCxxLr0pNTvm09i/evUONurpDuzenza1vq729u/bO6Wi1utbFrtGHD3dIiSaW4mWd3tbezVbdbb2nR39rTzIKNvJpNnUcFuxbcsJ0ytnm7HxFbw74jg4xDJTq8jxV/j2c8c60+RsTcbHJBZqwVql7jZLVDk+S5KCtOk8l2e7yl2eaH/l64krwNDf5PneLa6hhezUuxztAtlfia8C2XjlWZnswzpHZqw1XeMxxxJDXgX1+8gztdKpyLSinT20hKVWjkfhsthS2YsVx1XapKTlL0hxo8Yy1lJKSCZt/JqrNF5fGZgENjlrLuoXQYitV0RvuAOrW/qVO/wBUMefkbV/GleqzFvR4as4BYP0iW1d6R1D6lUBI7EfUD3NTtWGyEMaYxpjGmMaYy6L6JXUf662T+ZXv6b16n2Rb+j1v3ySg/v1Aw/vP+WfF8dF+CX+iP+Zj6JXUf662T+ZXv6b0+x7f46v9pN/psfHRfgl/oj/mY+iV1H+utk/mV7+m9Pse3+Or/aTf6bHx0X4Jf6I/5mPoldR/rrZP5le/pvT7Ht/jq/2k3+mx8dF+CX+iP+Zj6JXUf662T+ZXv6b0+x7f46v9pN/psfHRfgl/oj/mYHsl9Rgcm52SoDzT85Xo7h6jP7t8Z8s66PwtqRGQvV0w0fzk/t+6uP8ArnK8hGpDBJtggjXQCCO4IIk7EHvmvX7RvTbb/XVibtBTNMN07FlpsNsG/qIV3Rt7hgM2tS9EuKeyhWUGbWXFZYWdJYIkV09MaPPVPiwnp0GIkanrHia55c+Ord9ktHi7UlriuYgoTT0bctIWY5Wmq2YJaskFupar17leSKaDqaEwNLHFPIc2ow+Ej4k8E01k+GFl3h5XjJ7ldbdeO18P0Ik8csciyV5q801aVTHMoWUTCN5II1GGCv8AZ+g0G69y7V6p+zX1N3S1u1TNhvHcdOXd37kst1KiRo8i9ouqMSHaQdv187fM623bLrEQ9tWUTYcaNG3JYb83PYPbLoLHzeZvCcrw1Lk/D3mP4W4u5SL/AGbU5F34ipHxwnMq1bvhmzPWtWpYuHir8dHYSa3DPzb2ZKEfGcfFHylmD/8Awy8SU+XeryngfxDyEFwRtas0lXknmtugQ3anPQJPXghlvSz3XinFaWHjxD8Q89l5KceYP2GOgiOnm2mOpe8KRFXu2TtPb+y6XZ7siotDtivg1FQNwWVpZVUf5PJud0XVPDnKp2bO9p9rtRFfMdq7Mv8AcT0mvHmn5kVfE/IJwXFWWv8AFVOYu8pY5V69mtHyNmWxYWhFWq2G9UVeNqWJKyW54q9nkC6PYrRRU6SpIHh3wNyfhpTY5OIcbescbXqLThsRzz0oo4YRaFi1CJI2s25oxJLBDPYgq+mI4rDtLO7Zt/Zx9nbe+9+mUXdVVO23EhXN/ud5piymWjEoGLdy6xxRbjU0tkILsBaW+19RKUgqCTxq+/kFwsw8sOCniMKx2pL0wViyt8lp6xJCxdPdq5HZj+iT2PvTvzy5OJ/MTkq/zO1KhxFYlSGABoRWR83V8xPxBJOu57bOu1d/omdSPrjZf5ld/p3Uy/ZFr8UP9d/5eRD8dH+B/wDD/HH0TOpH1xsv8yu/07p9kWvxQ/13/l4+Oj/A/wDh/jj6JnUj642X+ZXf6d0+yLX4of67/wAvHx0f4H/w/wAcfRM6kfXGy/zK7/Tun2Ra/FD/AF3/AJePjo/wP/h/jj6JnUj642X+ZXf6d0+yLX0aD97uB+/UTH+4/wCePjo/wP8A4f45fwbUDzSB96f/ACayTPMzmLZgnBAT96wP7JOmM+/O0XOCtAPp7454z/SPLTGRk2URRx4oH2qKQPLP9RP+gOmMjpksKOA6jI88nGPvJwNMZGBBGUkKHpgg5x8DnH2eemM1JOszcXaHVzq8upWqVcwd67pr34CY7qksfINwWDAUlbAKmyPC7CFcKWQQQEgK02+dNCUeOecoTD06ic5ykcUgKoPmtyqyEOFXQGnAVVA31bIDZuO8p7Tcn4I8HGwPThfg+ImExkXUhNCHqVwxJIBJK6HylQCBsamXRz5k3Vti2lW1cwzfh+aFvKZCZHvNBxgDxyFJTkqGe1ByBnnUDcz1UrYhid5YQkTRSRttd7AIOgA3f5tDsNhR0nuM78QS3KdymlWZ2paQsoZwC3VpyQqjbfd82h2J+4+ci7p3XUCzgVMNRhRJiXnVrSkobU0MOYAIyAPewOBnnjyzDh4aEzU5JpAHlCBF2g6z1L0bJJ6R1bXe/Yb7HPi5fj6FlI5rMyiWSNgCPdg6knuRs62FX3I6dAg5sneyA8xG9mnpK8+6225O27It3RhKSp66urW3ccwPV1U0rHwBH4bj/Juj9n+WXg+t09H/AJUJyugCDbs2LZJ7D9L1urWu281Geb8iyeZfjAIzMkHKtTTqYsQlGvBTVd+x6VgCggaIA9/fLhnL2vRwHkkjzHcB8PIjIPn6akzI1JCgknQH+30zqOblhJHuqH48g+XkQU4xnnIOfs0zkEHuM4DcjJOA3kn0x/8AvTGRhdFwdyEnHlwEjB4z/N/1P2aYzl86OHgBQPxKUED78Af30xnx6teST2AOJ4wMjuPxGMDPP2DTGS5bRScKSpB+7H9wR5aYzoPwkuBRGQo5IweO7nkjk85I4OB549NMZKX4r7QJySnP8yST6Z59QPTPGT5AjTOCoJ79/uHtr7/27yTPv2UcktrUpGPMA9w4+BOVDOccHGORxnTPx6nGm61Meu7dOiDsjRH7dewPY99e+S+RvSfUtF56QEspHd3KJIBGfQnJwAPsyceeDpnUPLosSOkAHuBs7bpGtDt3BJ393681uut+5dobe679fr2bcJZsbfqFuGwbYK2kpVHt5RtsoSpQPat6e4r+TtwRgkggalvyiuK5K15k+Ia9em8sKcpamHpq/wD+qUzr1nXSGPqA++wO3sRvbR5LT2OR8tvACxRgwx8BRjebqI3JXj+FIYHY7ej2+uwRsnZFD+nG437u7tLOvsGkQZT5b8NT3Y2tKQcLBGR2q94Z9BxkAAmvvK1BUhq0p6zeuqF2dYwx+ckBW31HSsmwDrW+5YaOTxe9GKjEsiGV41BDKA5BPUw1ogDZBJ2ADvXcKN+pk7hcYp7rwZLCY06c62qYp0ZQgJS0lDQSoJy74fiJI/qJ7Cck+1wFJZr9FRCxZPSUIF7HqZSOolSw0CTodx3B121j/JQIz13m61aCurqmm6STpg3Sx0e50QRruxBP02E+gi5ULo/0qqGZH8GD082e2e1R4WaGC47wFEZLqlk+WCc48hrdZ4Mg+F8I+GK/SFMXA8UGUb7N8FCX/S0R8/VsfQ+3bWabfMK0t3xt4wtlupp/E/OOrBiTo8jP0jYP0iVRs++vvJyvcWFIfKSpa+0jPJJUrgY/lPkeM+XrgDzGS5iKoXUAaC6Pze5Y77AL9Nd/qN6+uekjVywlIA7QMZJzk8AEgqPJwMHzI9fTTP3VQg0Pv2f2/wB+TlmC23yR3H+pQGfgfdOR/qPtHPOmcgBRoDQH+/1yZtxVrwENKV8CRn4+RP2A+XoNM5yYN1jqsFxQQPgDk+vrg49DyPiODpjJ7pjOC0oIPiBJTjBKgMAHjzPlnONMZKZSa5sFSleGceaOAnAHmDgc/HnnOfhpjPKT5zSAoMKCyO4fxE8AEcg4zx5DkAEeZxnTOCffXcge3t3+g3+vPBWM6etKkpYynyBRjBwMk93mQQOfIeQPAOWfGXZuzMNfs7/f9Pce2vY++x7E0xvq2wmodCluFtQUA26FduO30VgYwD5dpyf83qWftIyOAAwJG/l7gt7exOvbW+2a3X7RX2K/aDsuqt71L6cbTt937Sv2IMl9jbaFTbKqnRa+NGlol1bCvlSmXXo6n25LLDzXY6ErUHEkKrF5oeBOUsc9f5itw83J0ryxStNUiWexDIsMcUqPAgabp60Z1dImT026WYFGOX8/J484PCFDwfxfhTnOercFynFfFwBORkNWrbgltzT13huSEVxIFmVGhLxt1KxRSgAGN+kpfaU2kHKNHT7fcRzuDIbd2xeeN3FSu4BHyNOFAns8lEjIP+UCtXN+A+PtWzNb4q6s4kHytSkR+sb6F00e2+bQUKvUQNhtd8t5U8YcBPWWRef4OaIJsSx8hUdV0Ooks0xGiO3sf3aGXU9JfZv9rbq9Y0FT/h/umn28LCO9Msb2C/S1rTCnUKfkO/Kwy7Jw0klDbbLilFKkN+/wMh8H+U3KWuQifjfDd8LM0aPfuVZa1eFCwO/WsiOPSgdZETFm0QAxyO/HnnP5d+HaNuaz4o4mxcWCRIaPG24uRvTy9LiONIqUkpUlgNu/QsY0WcA7zaI6a7IvtsUtXXSJMh1FfAhwmfFWW20oixm46O1AV24CWxxjjkYyNbCasC1q1asuumvXhrjQ0CIUCbA0NA63rQ/YPYak71sXLly5MCXu27FphvuvryvKdkMx7OxA2SSO57ZXivkWUdKQpeQOCEJUrOMckYA9TgAjB5J519GfF1FC3SSO40CATr7t6+m/u757uDat4HjhSz2gkkgEY4PAHPlgnux66Z9SuGAIB7jvv3B+79ffY7ftz10KyrldoCEpX73JwVE5IwAeDwfQ4Hn5nlnIIYbB2D/t9cnyHGlYCFJPwA4z5ngcZ9ScfjpnORNMZJnbJQOEYJBx7oGD/wCpXdnHpgAHnk8HTGS52VIczglOfXuyePLkk/6HOmMlrsVbx7lKWc54J7gM8e7zx5c8/djGmM6pq0+p/DJ/sR/c6Yzh81tk8E/+zJ/vpjIooESMJUwtwHlOUhKftySkj/vpnDKGGmGxvfuR3/dkZOzYbvLsCMD5DxAFn15xjPr/AMxznTOpiQnZX+8/xyMNhUpGFMoQeP8AdNoAxzke+FAHng44wPu0x6aa1rtrXufbZP3/AHk5y/cqsayWI0YkZCe5sJXjy/mThOT5ngD79M49KP8AD/e38c6zm12mzkROE8lSCDnHOeQc4/Dj46ZyIkBB6R2OxskjY/USRnWVUpbyO1YVxwpJH9/s0zuQD2OfE1icZOQfhgDH4554+A0xkRNaUnKc59DnP/bTGTJpTzKQlKlED+pQORn8PTjy+3k86YyYs2DyOFDIGPUEE+vBzgH17cH7fXTGdr5r/wCP/wC3/j0xn0VQzy6cfYBn/wCRpjIwrGAeSsj78E/iP+mmMjJhRk5/hBWf6veH4A8fjpjI6WWkZ7W0DPJ90f8AP7vLy0xkTy8tMY0xjTGNMY0xnwpSTkpST8SATpjIKo0dWSpls5/4QPs4xjH4aYzrqr45BIQSrBwnvKEk+gJCVdoJ4KglRA57T5F+z/v/AK5yNbG9gbGyACQProEqCdewLAE9iR75ZqOtfVmppLty76H72ur1o2Mylc21szdsOjTBehQ5tBDsES2Le5lz2kS2mL+RCiRizYvO18SqKKbcM6qxocxyUcUvq8TammHqPCYKtlYhGUV4Vk6lkld1DBZ2RFAkJRECxzvDYVvKry+5DkuNXjPM7w7xnGOKlfkk5jxHwFjkmtR2bFbk7FN4JKHHV6srQPNxMVqef1KaJbs21bkOIqchWHpr1QqepkCim1u2N91abqNbvOvW+1bmFU1MmmtJ9VKrZ11Mr4kJU5Uive8JMXx2lEhpTqH/AOHr06PJpeSFkr24/VWQkyV5UjjaKRo2jaVkVC/Uja6dg61vq7ZHnjLy7u+DLXKV7fO+GL32bNQjSOhzvG2eQvQ8jSq3oLlbjK9qxaWqIrcfW8wjcaZwhjBYf//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAAGAwEAAAAAAAAAAAAAAAMFBwgJCgIEBgH/xAA8EAABAwMDAgMFBgIKAwAAAAABAgMEAAURBiExBxIIQVETFCJhcRUYMlWU1QmRFiNCUoGhscHR8ERicv/EAB0BAQABBAMBAAAAAAAAAAAAAAAIAQQGBwIFCQP/xAA6EQACAQMDAgIHBwMEAgMAAAABAgMABBEFEiEGMQcTFCJBUVJhkQgVcZPR4fCBobEjMkLBMzRikvH/2gAMAwEAAhEDEQA/ANgCtb1nFKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKfvj3HHfnsCMjg4PtAxzVcHIHtPIHtI9+O+Pn2zxnNDtudqoSAcHgjuPavOAWHdQfYWABGCMg5oATkjBAOCcjCnkEMc4Uggg5xg8HB4pVf59KpSlKUpSlKUpSlKUpSlKUpSlKUpVW+mvS09QoGpbgzdyJOnIT8xvStojxp+rdQeyj+2Q3aYU2bboaGn3i3DTOkSiwzJWfeEIaR3q+qRO8F1NGks720Mki2luivdXLLE0iRwJIyRMZCuwM5K5OMf8AIfGWZY5YIWaOJbiRI2u5mdbW1DHG+4aNXkCqoaQ7UJ2I2079qmYab0Za5EmSm56J1vaottRGcv0zV8V6EmJIElUSXZtPiNCgIvlweW4x7nOiImRFuENRnXfiJwePqa/urs2qdN63p6W8YkvLjU7eSEpJvK+iWzCJba6lkZo1hmixGoYHdK6vIcpn0W0tYBMde0nUpbgkWMGlTwy+agTzI7u6WSdZLSLAlEsUoSUGPaUUgF/OJgXG2XeKzGh21pN3ki3t6Q1PpVU9KRc5CmBIkvQblFv0Vq2RQJS5cSe225MQ37YEJ9grpTq+tw6p5gWRi8i4tbizaRMOxiTJjeOaKK2QNJM0DndKqmRVLbGzSHRNAuNLaKTG62hdjqNhfxRBhEgnYKZori2Mt1LtiHpULuICyobZjvV1v0Lb7R04ni2dLep72qXL9bkWeL0p6kvsXHVrEmaqM45bdU3WwL+xfdWHftObaLhBhF8wkQoc2Qh0qXY9QXGo6Vp800WndYTXc1/Elta6TrbmPVnZn2NBcXULDToZM+vHJHbmKMH0G5uUCo3LpT0PUNetLefUuiYdJisro3F5rvTsRj0t0jTEd1YWt0j31xI48mG4hluFBaSW5MeQ6zO1dBr3arFYYUq86kuEs6fcud01Rqa0xbfYYktKiW7NPuztxYnpuYR2tqectTsZa8rMrsHanKumrjWILXS9L1e31u9uJ7J7qfqC5hhjt7eYmNotKuxLOt3JqWxwUcQPbyxhpEm2rgYb1NLpd7e6tq2lppOnW63qQW+g2M1xLcSxhQkmoWkYSWCGwOxJdkl0sgMpwgJ21SVQ7VKSSklKlJJSe5JKSU5SobKScZSobKSQRsazGsYr5SlKUpSlKUpSlKUpSlKUpSlVa6K3BVu1sFoeXHU/ZbqyHm1lCkYbbdThSSlQypAyAoZwNxjNWOoO8drI8btG4HDoSrr35DDkfiM8Z9ma7PSIUuL2OKRPMUhj5ZUOshAztZSrKV78EDvwc4FWy+KvrTdtE60tk616z1Qw+qSl1Yh6hvMVCVJCkpWsx5jacpIAyds4GFYAqC3ib1P1lp+vTzaR1Bqtv5RMjKt/cgNIPWEaosgDA42nIJHqcgZqaHhj0Poer6S8F30/pMgEOIxNptpIxVgBlHaJ8FONgZiDjnuKtSvnjL6jWifCuOmupk12fJKlSo0i+zpmySkhLq5ch7vWtzP9WleAkZOcmtK3fjt4o6TM8qa7fSEAB0nmllcjnMZLuzDcuQwGDx35Fbb0zwM6Rv43t9Q6XsxB6o86K1t4sDGMkQRKTt4IJIwcDOAQKw6J8anU7XK2F6u1RcVxbNKZZlwY8ieyyptRBadWIsplqQy4F9qw73JIySQrccE+0X4h67eRQ6trlzDZwpEqR29w8Yf1icTFHV96uGRs72VSuCMri21HwA6L0NZPujQbQS3UbbJ5rWCdlfZ6yo80TvFgKNpVlBYsGDZOan6O1Dd9UXzVkxVyfmWSOyFxDNlPy1PGY4zhll6S84sNsBO7SD2oCQkpGMjcvgbrWo9QeJGiPd6lqN3Cj6lelLm9ublI44rWYpFF5zyNGuZC6gs3AJJwcHVvjLoundM+G80cVlaW1/fNZ2jm3tIbZgBcxAyyeQqByY1KhtoBLDj3+9qfw7D8BUHD3OO3spVaUpSlKUpSlKUpSlKUpSlKV6rRT/u+pIKgrtLqJMfI5PtWVZSNxuoJPrtnarS+/wDUm+YCj8WYBfqeB88e3FdvoJI1S2AJUsXAIOMeqTzznH84ODWMbxx3tcPVbURqKqUFuOh1pCQ8v2P9slKTn4e7ux3JKe3bfmCHinpgbULx5JxbkB9sjuUy5JCgsM7QPf8APg84r0c8GFD6cjliANynkKAAyhQTggZPC984wcd6xVv3WzTr17BUqRAeMhX9Sh5xpxaQoDAQv4SM7kD4vIAiop6haanZmaTalxGGyrybJlU5O4l1YuSxAIY5/wBvs9sv9Nib0JiEE6tGDnywhwoGRwQduVOOPWOD2zVYrFcUJv8Abbbab5eGrRLUym7zZS1Fpl44LUdDrSiAEpQO1KiFJO5SCMHodKiuGkuJ7u2tGvFLNa28CjdJGp3S3DR4JZVYDcMKGIKgjJrnPb5tJbm4tYpHhDiCFWVmYDIBMRIbe7A7gM+w9sgZmejDjX9HosG3LYfg22Gy1JmIV3qkyXQktrQ4d3UJTkrXuFOrIPxJIEt/ssW0knXcsjqV9H0LUriRiMbWuPKhwFPKLl9uOCu4KMjvAD7UEgg6XaW4YxXOpaxZJFDjbst4HaWeNVxxllBUjACqwIB71or0NqBNKUpSlKUpSlKUpSlKUpSlKUqcafWGr5a1kEhMxvIHJBChgfPfbn6VZ34zay/JSfoDXY6SQupWTEgbZ0xnsSx2gcZPO7Ax7ceyrA/GPZYTGt4d5Q8266iU62WFKQtQJC1FLqCSUpKeCUhJyN8nIgj45y3RF7AUYxvGu6REOVAY7R5nfLiPBK/8SexNehfgzqBOkm0JIcRqynejqwVQpxt5OHOG4499Yr9Vabt9z164TEQubNW8WFttpQ1Gb7QS4hLeAkIUQptIOScJI8qh0+pXVtZX2yWQWtrIC/cl1DhVUk+qARw5IUgDgjNTM6dvPL01FJARYyJW3IfMIALrtZTg4HJXOU+ZJqulptOkNFaemw7+0fd2Ge9KCrMh+4vj+paaWE9ypbiyl55RUfdmUAEA10fSMuo9R9TJeW7M0o5DB/8ATjijKqS4JZfKGcKoxyCQTirW/vr2/niayfy9zoAWBb1FcszHkr63IjZee4Ynmsmfhyv9uvmlmfs0gsRLZBaUEjtSgrcWQggDBUksqOCTnnPNeg/2YdJltep+q7i4h8totGS2U8EE3Go27krgDh/Kl2e4Bsg96gJ9rUzW9holvPKQbrXrudRtYsyw2lwrDnG0DzY2yuU9bbjcci42pqVBylKUpSlKUpSlKUpSlKUpSlKV3LctaJ8JSFBCxLjBKjgBKlPISCSfwpyfiVkdoyfKre62m3nDEAeTKcnOcqhPHz4Pf9au7Bgl5auzbVW5gJGe48xeB7yO+P8A8ONT+I7qPT/TCzXLV2pJSoL0Oa+zHiW1LMu4XWUtKRbYMaIShUqQ42w6uStxxplvK5Ux9pppK6iT1/pU/UevfdNrDHL6XEdzysywxRL63mMwLbQruI1wDJJI0cUStI6ipv8Ahfqh0TS5L2cEWi5WHYEM0tw5ASCBMozSTADYN6RoWZ3YKrA4Beovij13F6gwWoOkbXYr1Zplvcj22/6qVAvcuOpi14fTDTY3EzXFruLzTqbWi5hsxFPo9vFDcl3A9G8COkbzS795tbn1G21RLmJ7nTtIabTA0PpPmRu8t+rx826yK9zLZA+dEsohmdo13va+I+qwhoxoSNErh4ob7VpIbrZMsSlVSK2CyOqzbgY4rjaiySHdChlFbtD+ISf1gvjNn1DaZumrpHisSo9juDoktOxn3mDcJtvuLKWY91dT7Zj2jhQw+xGdhuPREtuJUrCl8HdM8OhcX1hqUOp21zIITfWaGI28sIDR2F1aO0j2kq7X3oJZ0ldJkSVpY2RdsdNdVwa1aGG1spdNv4EE9za3s0TyyWwx/r6fOjILi2KgbnMaSocSzRxpKNuwN4UbS1a9DSUsqaWkm3NOFrBAeDDr7iCQMKKA+2lW+ygrIydpF/Zp33MPV2oyq6s8ulWse5sgqgvZ2IGPVL+YrLycxlAeQRUFPtgXxn1TpO1IKhV1q6CMcvteSyhR+59UlJRxjBB79zdLUpKhjSlKUpSlKUpSlKUpSlKUpSlKjRz2yI6s47X2VZ5x2uoVnHnjH09dq+U2DHIrHCsjg8d/VYKp4PcnI+Yr7W//AJ4G4yk0b8kAYRwx79+AeP4MWP8AFUtunNRxrPHucyDHmC3a2lNOzLhHtjLlygadEyDEYcnH7OkyJTUeSEwLgsRprDTsftckKYQqMHUElxp+s3stsk77n02N/KglnWO3muJFmcx26tOsEbPH5k1uMwF0eUmJztmJ0nHM+m6fGTH6Iks/lbmKqbh4MqWDggOqljErEqw3hg2Vxp9dSb/eLD1PtcvW2sbs9qvS9xjmbeo8Vd0kOMtvMvQX7FJcnx0XF1FhVEjLi3J2xtIkoNqMowWTcaznSobG80d4NOtoorCeOUXFsIUijUzExzCS3VdgEx9ZnAxNujcgl1xtG2a7jnja5uI5ZrcRvFLlnMiKoIYnCBm2DywFVcIhVTgAHId4SIN21DqDp1db6uCubKv08x5cC3xUNTLOiyuOz2nbhCU889JhQsolOXsRmUNPLh2N+cI9wTWkvFC8h07RupIrfz8R29ifLlmuAkF8btI7cx28oEEfmkKzCzMsrOrempCGgeTafRzyDU9Im3AyhrrHlxxySSWxt3RleQeu6FfbKFREjSOIOdyR7WnhkhLg9PpDamXGR9rlLaXEkFTaLfDy4jO5S4tRUCdiB3JJBrZv2aoiejNUvi6yPea4Y3dcg5tLGDCEZPEZncNkk7sDjDCod/a2vVuOu9Dtw6ubbp15G2EBVa71a+YKyqcCQJCoYkA7VTH/ACq4upF1FWlKUpSlKUpSrofumdQ/znSn6m5/t9dv9zXXxwfmD9KtPTbf4j9P3p90zqH+c6U/U3P9vp9zXXxwfmD9Kem2/wAR+n70+6Z1D/OdKfqbn+30+5rr44PzB+lPTbf4j9P3p90zqH+c6U/U3P8Ab6fc118cH5g/Snptv8R+n70+6Z1D/OdKfqbn+30+5rr44PzB+lPTbf4j9P3p903qIMEXnSgIOQfeboDkcYxbic0+5bkggvBg8EeYOf7Vxa/gXaQJHIZT6iFiMHJPB4BGVyeBke0isKn8QO12tdphC4k2++WuXGudquQiIlrtmobalaIlxaZfARKYS6t5mTDeCUyorzzC1IUUuNwj8T7i9tdUEiq88T+fbXlsJjbefZbtlzCJkB8hwEDRT7T6PPDDLslAZR6B+E+njWdNe1DkRuIZYJAiusUwiHlybXzkr5p3jKkozgMjbHXV91loLVWodcyTqnpXE1fDkwbXbbiu1XqK7A1MLc3Dge9++y4ke76cS84wnUAtyUtM291j3Jv3pyS8uVb2XV3TFjozegdWvodzHc3M6enafKbvT5p2JeF7WF5LPU5Egeaya8eR5ZnYXSPGY4Vj3Hb9FdXRTlH0A6rbMFje4t7yA28se4BWMj+XcWoLlZliRcr5ZieZg7ySXbeFToqnS93gXS4qt9pvrVri2hqy2+dKnwbJFbKFzlqnTQHZV0uS22GZphJjWdmJGZagxS6/OkyNUeI3ihHr8g07TY72/wBGW6nu5L+6hjge+udmyERW0RIisbNXdrc3BkvJri4muZjERGjbY6U6Mn6btJ9U1NEOpzWyWggsmMsFnb8NIfPY7JrqUoiytEI4YUhWKMSedLKNurwp9BNYdRui2ndYWm56fZi3SdeY4TOfmofcXaJgti3g2xDebDCywPYlLhBT5J4qYH2benJoPC2wmUJCL/WNauxHLJJvI9KEe/119UBQqBQxGFBHY15hfaa1KFvFrVbUhwNP0rRbckhNoMts90R6pzuJnZTnOfK7+1rjfumdQ/znSn6m5/t9b7+5rr44PzB+laA9Nt/iP0/en3Teof5zpT9Tc/2+n3NdfHB+YP0p6bb/ABH6fvT7pnUP850p+puf7fT7muvjg/MH6U9Nt/iP0/en3TOof5zpT9Tc/wBvp9zXXxwfmD9Kem2/xH6fvT7pvUP860p+puf7fT7muvjg/MH6U9Ng+I/T96v3NyQP731wrHPGcjH1rIa6qogujGwKsZ81D/jOfLgf80pX0XaIPxuBPy8/lkEgj6EA0pUUXKGrh1P1JAHIHOcedUJA9o/qaYPu/uo/yQajpksrOEOIUfQKTyePP6/94ZHv/n8z9DVcfh9R+tR0EKKcHIKkjP1IH+Wd6E4+oH1OK4nsfwNavH8RazPMr1DKdabU3Aut9jIbWQlaUR7vMZZCEnZXalIWntP4cDyVUEfGYRxau9vHI0RN3cIx8ssgETyMyMFIbLBgeOOcZyePRnwAuy1nZjLf6lpZuQcFc+jxlj6ucbmLHvyfd2rXwi3S7C/SGbOGDIgyjNc94GUpYUtTSm8pwvLhUMBOCD8WQQKi51BY2KbpLxmEN1GYEWPhhJjcrEcDKDLksOQQpzyBPXSI0ktUaRyiNsjJTcG3MNwGRgY+ozjOSM1dv0mTE1Xdm5V791izkFtDbbDmHZIV2DvKiUuPHACElW6cb75J10vpOjzRR6cZp7QszSmZWZIcEsUAHqJkAHhSMkZGeK+2rtJaWojhJkD4BOBhVDY2YBJwcksfce/HG5Z4Kbdb9N+Fro7GaU2y3J03JunYogK77jeLi8tSiST3L7EqOcE53Gwr178CoZLbwl6K80KJbrS5b2QKMAvcX964IG0HlWBb/wCZdhlSprxN8f799S8ZOvrhskR6tFZIQQFMVjZW0Ke3DbQ2xWJJ2rgY5zc27fLe3/5DZPmEkKP1ByAfLz8/Sttg5HbP4fqcf191acZlU4YgEjOCR+HcZFdNWo4KVEBzJ8xxjPGOQeR/MAcKpn5H+36/z8aoJYz2YVwGpY6jhKCo/Lf/AH/nVa5KysMqc/z3HmuwL0hWVBKyCcDbGOBjGx53yd9+cYpVaG5uA5CckbcZwDvuePMZ/wAPSlK5O29wZPb3pxv2EZJxt+LGfTYc9u+xpSpeuMQeClWDsQQcbcDG443yNz6GlKl0i3hQJII3PxDY5Kc5OcZGQDgb7bVQ59hxQfP5/wCOP71I3oUpkqKFKIGcdqu7k5wUg5yBgbd2B9Th2+XJ7/8AXPHv/D2V8GjkIyuS24k4z/twcfIc7R2HPtqTuyLiySUPLwSfUYydgcE4OB8vkdsU4/z+PzxVvub2MR88/rmug/rW4WhtT0mR2ttHuKlnAATg5AOFeWdsjPpTAH19/wDnJ5+Wf6VUu5BG88/h+lYJfH9HkayY1DMjoS5bPt25OSexxLbjrbrqpDimOQe1TiynJBUe4cgGoJ+PUrWmu3rrv86O7n2qVRl3SE4LgckMAGwOcHnjt6J/Z3uootM0ti6CSXTrcIuGKZjHljduAbtHzju2fZWBl/Ten4l7cRpZlcyfMbU3M97fCAyy04l3vIScI7FDCs93dk4FQm1bUdTk8373fyLe3lVofLhBd5Jd4wMEkgh/VUAYA+VegGiXM09upmMYiQxsmF77SGAL4zyAQcgYHOe1Vm6X2GJB1BbdQSp8d73KUzF91YUN3XypBSVp2WUqUT8KgAAfniwsNTubj0rSY7WRRLFcXKSydv8ARRWCoA29Qdo5G71h3JzXYarcD0F47eORWkic+a42g4yVCsSeSUwvY5I3Dbydu7owqVE6Y9OrRHdDcWFo3TzbbaF4DQdtzMogjuABC5K+7YZWpRO5Nez3hrZmw8PeibRv90PS2iZyOd01jFcEc85Hnc8f1PJrwV8T7tr3xF63vSwIuOqdc2bDldkN/Nbpgg4IKQKRj/jjPOardGiPvBJUpalHjBJJBGQOcEc7E5yD6Vm9YKAzEAZJPb+GvRRbUs4CyBwcZBJJycEbDPmMH65waVcrEBtLL82Bzk9+PkPb+vGJ9HtzaQMJyoYOSNwQRvj/AHBJxSvoqqowoxnvjPf+pNTRqICMpQV4PKUnJBGw7iBt3DPONufKlcqmDduUogkIA2I7wFH5gduwx6HbnFKVO6UrgtCFg94BHqfLH1pSpTJEBpK1LV7M4BwlWQMHIyDkEHnjzx9FK8lcZ8dsKDDiVq9FgjAwD2lQB+Hfbjf1PNCcY4PPuH+a4GRBwWAPbHOfpXgrncJzwUExjjOymxk43AxglWTj02HoMiq1bySbiQMYIxkZ9+fbj8DkVS6/224z23kLU52rKvgdBUCSM7EYI5G5SR9c0/n8718qx3eKnw+a81Pou7O6HXFuct0SXnrC4gxZqXFoCSq3vrQpma0opLns0rRISsqbU3+EqjL4zeGWudQ3E+p6TZLqaPL53kWxEd2hVAWUQyepckupJcshKEOF5CrLTwK8VekunksdM6muZdLNnEsJvZI/Ms5V86RkeSSMM8flrLhtyBWC+qy4IbWL6heHXxV6X1fOXZ+knUpxTrjiA5H0fqOWw4F7Odr7NucZcSSe0FtxaQRkZSai/qXQGqzAW+q9F9TKUK4B0PUTu2Yyd0ELx43ZxtPIG4Y5Nek/S/ij4XXFrHJF4idGlApb19d06Nl3EceTLcrKPduZVxnaQGwavW8IHgp8U+tL3bJutNM3DSGnGJbE2SNRxpVtkLShxBV7G2ORRKfd7AQlkpbHJOwJHddOeB/UWq3QOm9J3tgjACTU9ZhfT4IIyR6ym6CyykElhFCm5iCCVyWrEvEj7SHhD01YTtbdV2HUN9GjCLT9Bnj1K4eUAsq+ZbkwRozqEMksiqvqtg8g7QnTzRd/sNuhRZD8h1MaNHjNIdIQhtMdpDKEpQFYACU7JP4R8I9a9FrC1WwsbGxRgyWNlZ2KOoIV0s7aK1VlBJIVhECoJyFIzzmvGLVr5tS1PUr9hg32o316RnJU3d1NcbSfbt83aTjkjI71Xa3P3WKlAUvtCcDCB3DbYZ3SDt6qzxwMVdYHu/g7VYrIyZCngnJHsJ+ft/vXtoF4aAxJStZBycYbTwNyE7jIP+gPO9ORn2/5/wCvwH8xcLMpA3cN7faP6HGfnyTXsIdytzqR2hsHjJ3/AMyc7EYz6jPB2rXNWVskHODz34P9QPZ8qnzbjagAgpIxtgjb0GPpvSuVRaUqSuXLCMJT3E/M5wQd85wcEcD1BzsaUqXOy5bmUglKe4Z2GQORg77nk7Yx3cUpUteirkZLhWrfY924PJzgY3G3GMnnOBSldVdoa+ZG3wq2HPP4d/pkDzzkUrgY0Y5K5z35PP0NQhaGgP7XPoAN+P7PO/pvzVBwO+fnTy0+EVETp1p4Y92W5kndWQnHyUQMeY3P+lMfM/5/zn+9U8uPk7f8/wCB/wBV2EaMhuAlyDEAJzlxPtFc+gOTjGd8b71XnGNzAZzgEgZ4GcjBzgAHnkcHjiqiNBghQCPx+fHftzwDkD2cgEdlGhbPgZa7BzhsBIHoAFBeRjyyPX5VUM44DsBnsGIX/wCoOB3PIAPv7nNDFE3+6NGx8Shj9WBNfDou3tDLEeMpQOAXGiFnbb4gcY/9sVTJ95PccnOAe4BPODgZHbjtXPAxjHHuHAH0x/PlioC9MIQc+6gAb4aWfU7gdxOc/I5G9UAx/O/41xMaE5KgsfaRz2944HH4Z/GumbO0gnuQtAG+ME7fUp+R8zjffbFV7U8tPhFck2loKOAAcYyc5A2OM4IPl5UqnlR99g9v9+9RU21tCgpPcdxggkc59Ebg4I5I4NK5hQvYAfhUxaU+zj2bigAeCUkAYxttnYcZJ4pVamDM95GAsZ8iobeeTxtwR/n/AIqV3jbSeXAfqM4+mRtSlchb9tl48gACMAeXHHnjtH19VKiJgNj8TjitzwoDbyHHl/P542pSonuMbfLYVn+8e7/WlKjJZZR+BtCf/lIH88Yyfmd6UqLSlKUpSlKUpSlfClKtlAEfMUpUBUWOrctIz6hIB29f++QpSoTkNpKXFoSSsJWpKC4pKFLCSQlRSh1SUqIAJS24oAkpQsgJNDkDgZPsA7n5D3n3Ack8CqqFLKGbYpZQzYB2rkbiAWUZxnGWUZxkgVZjB68dWbbY7qvVXRa/SNQMSNRot7litF7g6fabiPOo08J7LsrVF3lMT4zlrmz7pBUz7Fm6soNqhSItzat+MprGoxxSi40yRpw04jMMcyw+rnyNxZppGR1MbySoFKrIAsBZZBHIe68JugrzU7D7j8SNNttIe30d76LVdT0y81V3mQffQs7mO10PTIJ7SaO/gsrG7EpmaweVr+a3utPlvK0dLeqVo6q2LTV8ttj1HamtTW2fc4X2jZ5phRWrdKlQJUOfdVR2oUa5JnwLhHaifH7wmMHmHlofZCu00/U01CGCaOGdFnR5BvjbaoRzEUd8Kol8xJFKkAAp3IIJ1v1v4eah0Rqet6bd6pot82iXlnZzei6hbelXBv4orq2uLWw857ia0eyubO5a4GDGtyFlijMchX//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAAGAwEAAAAAAAAAAAAAAAMEBQYHCAECCQr/xABFEAABAwMCAwUDCAcECwAAAAABAgMRAAQFBiEHEjEIEyJBUWFxgQkVGDJVlbHWFCNSYpGhwRY00eMkQkRzgoWSoqTh4v/EABwBAQACAwEBAQAAAAAAAAAAAAAEBQECAwYHCP/EADwRAAICAQMBBQQHBgUFAAAAAAECAxEABBIhMQUTIkFRFFJhkRVxgZOh09QGBzJC8PEjkrHB0TNEYnLh/9oADAMBAAIRAxEAPwD6AK+b57j+v6+HoOg6DFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMYpjFMZn/hbwZxuvsQ7mbvU6WixcLZfwuLaaeydogKUlp6+W+si1TdBtxdsE2b7braSoP8AOh1lFtouzotTAZ3nIpthhiC71NmjI73sDAcFY5B4ulggVOu7Sk0koiEA2ldwmkYhG4HEYApiCaYM6kbegDBhmH6PnDnHBv8ATLrUt2pwkDvMnYtDnHUFDOLYWANt5iCJVMmus8PZejAE6ax2PQieEW11Xiii4sAsdo2gnngZGj1vaOoBMZ0sYBAvu3LV/MbaVgDzx4T06c8RDwM4ZIc5Vs5NDRVHeLy6mi14QYe7yEjqRzpUUqiUiAoCLHL2UjyCeN2ADlam27AFUje24BgrWGIrcCGXjgbmftNwDE0YI2kgwlmccltoUtTEcoDV0R08Wdbjs/8ADh5H6p/PWqj0Xb5W2cBHqE3OOuVQRuCQRuDuDFdxH2Q6IS88bOFNpNEw5r+VkdgDYJZuF5sgEVp7Z2mhbdHEwW73RMPXgbZVJI6cXxVjxA5aGe7OeDasrm8w2sXrIWrLj6zqG2Z+b+Vsb99lbcWjVskHZa/0Z8pg+CASO57J0cyM+k1sgCqXvUxEQELwynUrGse7ddbdxJFAMoZxhe2NTGVXUaNCXZUAgk8dmuRExdzQssDVDzFU2pqhyqUmQqCRzJ3SqDEg+h6j2VQcG6IIBIscg0SOOB6emeg9OosA0QQRYBog8gi65o/DOKYxTGKYxTGKYxTGKYxTGKYzZzs15JFle6ut1n+92mHUmBvzsv3zaSDBje65Z2+tB2JqXptQ+nSZ0PPgsc8gb/MdDZHPoT8crO0oe9EJFWjObJAoFRuNEWQFBJogACyazZa41C8y6OUc6Qd5UsKOw6+8SNwYgbbwOB7c1UdeDvLLA27Kdvka3beoBHmL5scZGTs5WqjtBBIDC7FVza3e4gi/T04M1b5MXhDjhd+qD3feAoABEjdJUQfMbe077cj220zl275iQaQy7kJRjuDkVv3E0Omw2QRQzodEVUIEiFEWdvJ4oG7o7V4Fg5clq60lvnbaLZSDzJQoxMESnqoE9OUHlJMgAACpcXazFgUjKEixTttseTDdRrmjR554u8jyaNj4SwLUKBugLJI4NC+ti/Q1mJ+O98xa8N880gDvr1WJY+tJ5fnWxdcmZKCpDa0bESfLlBFZn102pgkSwY5B086NleTRPNDnnm+KzrpNP3c8TKDaM98ggDkbhZ61fFt1PF0R571Ey7xTGKYxTGKYxTGKYxTGKYxTGZ87PlypnUuoWkt96pelbq5Q3APO5aZHGFCUgg+Ih1ZB6iDG5FdIz/1AendOxBF7thU7R/5H+Xpz53VxNWu9YV3bd06AtdUKbkn0ur+HwvM7M3d5kVXBetlWjLyCbZ5IKXkJIUOVwKkcyOYKaUI3kFIgGqGeOSdJg6vAkqlY2BKzKpFX5qGUnchWyCfEOATNC6fStCkci6iWNv8AGU13TMCC+xgfEtLyOtC1YhqFy4i3Uw6lXfuOIW2hvlcVzcpbSpK1dBClDqZO4ncbGPDpzC4YSSOO7WMq7WF2g+MfE8AjkAAV0vNppFkUgQxqe8eQFBRO6/AT0CixRABAFEkcZeuLuUXXeOsOsPWpSA06y4HOZYK0uAlPhhKgUghRPNIIBEGdHIkqq6MpjO3a0bKysoJBApSOKAsEm9wIvpVTRtC+yUMsylw6PGVAHVCAQp5smqpRtokGhhHtEqRa6GZSgEryGobFp1SlqUeRFvkLoJSFE8qAtpPKlMJSAAIEA2KgGIgqadwTbEnhWYCzzXO7qK3EeuY0z7pkUMCEjYHYFCsbI3H+bd5Gx4jZJ450hrfLLFMYpjFMYpjFMYpjFMYpjFMZmrgHcdxr9CDP+k4XKsQDBPKhq5j/AMefhNdYKMwW6JjcjjrRQ/8AA+3ImsFwn/2H+4/C78x6jNj9RZHI2eNzd+xj2Hruwtrx+wsbd5x9667i3U60h5ttkOofeUgjuGUPkQORS1rKE1+sBQyGt6qxKbSx3BV4BAB2HcxVtpYUN27nw40KwSSaWHvGjWV4o55mVQIrcIzBS5DIqsDvJQUSSABZndLZC5vTZ9/bwq4tk3Sy2lQbYlCSULUo7KJISkbFUEgCDPKSNUUOpIY7SBdDkWQL5bjrRNdDwazNyLLLHu3opZTuILUCQCNpIo8i7qiObrL8ssU3Zha8cpNoHXe8caDfMySpQW6oNhaOVS5PTw83iI8g08aQjZBGkZNvsChAxYWzBfDtJJLELXDDr0HPUzvM47wmQqvd7iwsKF8IuiaRuCvmSeQbOYB7TFyEYTTdmDHf5O8uynfxG1tUM83w/TAIkdTtU3duEZ5FmwDtuypJHWz1JsX05q8xpEHeu3Phj5qz4mcfxk31AagCp4Boizmndb5YYpjFMYpjFMYpjFMYpjFMYpjMp8FnwxxK07zEBD3zrbrBMcwewuQQgT/ve7O25IigtW3g0VRwOL6gHz46qPLI2rFwMfdKmiLFWAbv0u78qy7e0/xs4adljhlqnjPxf1SjSGjdPr71q4YYuspm8vm0tsowWn8JiMVb3Gd1Jl80xjVrRhrFu5S4n5wyOVQxjLG/u2NFifVymKIBpGZObaNUplBLPvUBAaB3NT/wm91GDG5V96KrEq6G1D+RVgFYMLoEIVXcjAOjBgpHl3YfLM3+Y1hc4rTXZi1mzg8HmnrXI3XEPiFp/hzqLB2dzeaawWDyWVxt7gMpoxxnU2Q1tY4rEZGz4jZLC22QQpedyWDsLHI5K3w2m06oXOp3lwu3uIu/RwA7sAUk7xGjWMyOpiViu0oJCQMmJDLbDaiEGirkqwIKqK8JDbjIAKJANg01A+rPZP7Yugu1Vpty60hZZvS+rcJb4u61jw+10zibbVmDYyqFOsX9s9p7M5zS+ocJcQGrLO6V1BncT3yV2d3dW1+2u0GFiRJQVkV4wSoaPcoBUMpV42VXQ2poOouiVJokR5opo2uRNoa2sEEEGiKIPJ5G7zs2etmo9pu4Cr7SVqOrVpl7hW/lcP49tJI6f7KoD49I36WbArwgdbHU3Yrr6fPO2lHLNz1CDg8mtxo/AD/7fGas1nJuKYxTGKYxTGKYxTGKYxTGKYy++GL3ccQNJLmOfNWrEzH96JtonznvojoqeU7GsrW4X0sE2L4B9M5TgmGUDqY3r/Kc88/l1NDaz4lI4A6Ywbb95gMLo7tNcTLzHpC3rRerOHOldBZTRmSydsvWOgbZdhhnLzLv3blrqi3zzONuMm9i8XnrdGUxV1pBqYtKzvIvL6mDTkgiik0rRyWwhnIJViiUoBYgGSMNvXhpYRN3gDKGWPdVuLINigCu4K20tyCAOA158VWveP8A2k8J2wNC8Y+LHEjSWO43cD9UY869vH7++vbYZK0ypx7WRuMZhtWqd18nUPD220vp69u+GV1hblWlcTgrHJKxGXxz+prn2Wm0HZb9l+yaWGZtDrYmEYEe0xK5IIO5VaMxSlpVEqMA5YqxB2rWy6jVLqDLNInfaZgCNxO8gDkFbB38KQCAAqhlVVUD6y/kgddcYtXcVezHqzia1isXrjVWM4o6b1Obe31bbXOqOHGI0Nqa4wV/is7fZbP6R4gWeMzul9Fac1Tc6ZdxdppAaV4d4l4ZDKv5O5c8VqY9NBrNZp9I0jwKYywLo3dTMY3cSIEieHfvLxFg4kMkjDZ4d15MZJNEpmrvQVcdSTuYLe8kl25a2Yiv4QSbOe8HaRui7rPFW0ym208wo+xx7JZMqHvDaGT7QRNdPM8H6+KP1c3x8QPhecNLfdnpW8169Bd8/wCw6eea9VnJOKYxTGKYxTGbRfRK4j/bWifvLO/lurT6I1fk+m+2SUH7agYfif8AbIXt0XuS/KP8zH0SuI/21on7yzv5bp9D6v39L95N+mx7dF7kvyj/ADMfRK4j/bWifvLO/lun0Pq/f0v3k36bHt0XuS/KP8zH0SuI/wBtaJ+8s7+W6fQ+r9/S/eTfpse3Re5L8o/zMfRK4j/bWifvLO/lun0Pq/f0v3k36bHt0XuS/KP8zKrguzBxBwObw+cfzGjnGMPlMflHm2MhmlPOM2F2zdOtspc0+y2p1xDSkNpW60hSyApxAJUMN2TqlBcyacBPGSrzFvAd3AMCgniuWH29Dq+sidHTZKNysLpOpBr+c+fw+XXMT9vLsq47tWcIk6YtrXSa9f6IzjWu+GNzrjEt5rR69U2+LyuCvMBq/HuWmQNzpPV2nc1mNOZhQsMkcU5fWOpmMRlshgLGwfomlMMrDdIqSbRIYnZJAlh90bggq6yKCpBB6rYVjjTHaxalJG3hgGBVrsEHg2OlggHqDyD8Z2O+TYyuleMuqNB8fOwz2tdb23EkWV9xE1/p3hzn+JOt7bWKmMMjI5fhbxm0tc6u4fKxmW4jXWb1M8TZ2WQxHCpgo1tk9U5rJDT2nLeXtLV+zxPou0tJHJpm2wQ7hFA0SMSqT6VQjsRDtQsrMHmJaNYkQStIXT6V3qWJmjkCl5GZQ5cmi4k3ArclvVIojUhmdmAX6ovkquwpqHs6aYxPEviZp2+0RrF7hfpDh9pjhpkcvprN5HReKx+HwbWqc3qW90fjrHTv9qdY5jDWt01h7K41EdJ2LWSUrVN/mNa6qtbamlkaSSZ2kEzSzyyNLtdNwaR2VQGc+Fd3hJVCVCAxoI0VNNXItJDGAqKqWB1O1doJA4G42SDdtbCixv0M4icBNacRNRuakw+T0zbY521t7S3ayd7lWbsfooUl0rbtcLeMpSp5Thbh9RKIKggnlF1B2fNqYlmjaLa4JG5mBoMV5AQjkg+fTr6Zwi1UcSbSrsdzXtC15D+Z1PUHy+3LF+iVxH+2tE/eWd/LddvofV+/pfvJv02dPbovcl+Uf5mPolcR/trRP3lnfy3T6H1fv6X7yb9Nj26L3JflH+Zj6JXEf7a0T95Z38t0+h9X7+l+8m/TY9ui9yX5R/mY+iVxH+2tE/eWd/LdPofV+/pfvJv02Pbovcl+Uf5mPolcR/trRJ/5lnf66bp9D6v39L95N+mx7dF7kvyj/MzfY5UDqkD3p/zK9JlZkQZVgzMJj9pYH4JNMY+drWYK0A+XjG+0/sjpTGRk5K0UY70D2qKQOk/tE/wBpjJhNywswl1B+MDz8zA8qYzl0Bxl0CFBba07EEGUlJ3mIHnv5HzrRwCjg9CrD5iq/HGa8ZdULUI6hIk7bBRVMb+e0GD8BXzjU33hFgEeZqqDMADyB0rm/L45aaZTYYnhq6daWwRyCBfS+fnnOPWk90TtAKAPEdwCObYb7AyDsAZmRJhbl74chvGoBs+Aiw1AAhrIAPI68XRyYQCCD0Io/Ucu1tfIkgCeZIE+kA+UGevSpqkkAn+ucgT+R4re/Wrssa23zVX0virJ4JyBiLi3tsXah15CP1alcpMEFbji4idySfQehJjb3vZ67NFpwAB/h7gASRTMW6nnzyt53MS24FjQ61RN82Sb+PTpkZecx6Ng8lRHUSB6dCOYH4VNwSFBJNAf28sk3NS2SfqkA+it56dDKYgHzBnbpTMgg8jOg1IyTAbknyj/AO6YyMM0XBzISY6bBIg7T9b/ABPspjO3zo4dgFA+pSgge+APxpjD2NeTuiHB6TJ8ttwJ8z0AG25NMZTVtFJhSVIPuj8QR0pjJF+yQ5JBIJMyDI5p3JBk7yRsYHWKYykPWj7YJklIO6gSYHqYMgT7ifTrTNSLskX6DpXrzlFfeyTG7bilJSNtjzCevhkhQ9oGwPsNM5bnFNvUx1y22iDZFEfXXQHg811yQudaX2JaU8++A0kElaySBBmOVRMnYbn2DyFYIB4OaB5dpbcKAB5As220VQrqDd+nHXKNlLpLwbuErBQ8hDiSACCHEJcEED94kes+6vnGvIjnkFqAjsu3ne5BagoLVy1/KhZOXeiHhBo9FBJN2dp8jz5jzN/DOlg6J5ZAUDzAnzPLsIiJ8M/HfYTVOwKOCwIYFa8wFZ7AB5B9L5PrWWJUgefQEgiiAeR19Qby82nU90FT0H4CfKevXz67SIq0RhQHwBH2i/w/HIjoC3PNMW9Otmj9V/DkeljLGRlr27vX2m3wWW3XGxyr+ohDhSlIhUbADYJ8h5nf6LpQV08ANiok4PWtoq+B5V5ZQuL5DbnYts54A3EkddoNE7geQbHJGXHa2L75QoqVykTMkqVsI+qdgZE9IEwB1HfNVQuoAoLR8XUsb4AXyrnzF155clrjVBICU8iQZJMyZ6kEnc7EHrHoBADO6qEFD1s/X+OVpixbb3I5j6qHsg+GY/j7+tMyAFFAUB/fzypNWq1QG2lGOnh9ZO0/GYpmcqLeMdVBcUED0Bk+fnBjyO49RsaYyu0xnRaUEHvAkpiCVAQAdup6TMUxlJuk45sFSld2Y6o2CYA6gwN/XfeZ9KYy1L++aQFBhQWRzD9YnaD1BiZHQbgAxJPWmYJ61yQOnTnyF/HLDyF9frSpKWPD0BR0MCSebqRAMkD0EHeWQy7NwzCvq59fLqOldD1sdCcX57G5G+bdSpTnIoKHdvBRTBBAHMAIECAIO53O27O0hDjwtZHlR5sjzNVVE/HJhzL2TFjjrS5umrZ9i0trct3a02xW4yw2hQaW9ypeAIM90pZTISoBRCa+dduRTRamctG+xpXlUqppgSxIFUobzKtyCeKq8vNAwaJShVmG26KtVKNtg2OgsWOeuVSyvGgschBkE/WBEAEiCCREdTA9YPWvNd4Ek27WLklm8QNki/NjtFdB5159cnFGC7jW0jghl8+hHJscg8Aivhzlcc1DYW6VNC8bcf5drVhaHrnmE8w/R2uZzlJ2lSEpbkhRgAm00Qn1EoghikkNoFoWQG8JZtx3UOLJoBVuqBYxpyI42kJAoNtIsqxHAo1XWuK6muuYp0lpvUNmXLi+uH3FPOrf5X1lCElxanCkI5iCUlRERt5jpX1RRSqOlKBz8BXkT/rnnbQb7ttxAIqqAuiSCevBAF1fPnmZMfc5G3QAVyExKW0lQ/nHTxREb7k9TW2aWULbSQCeAQCSPS68r9BeX1Y5RAgXCVqVygqkhKhsAfCBJ9pKo86ZJVwwBAPI5vqD6fHmxx9eXdZZLHK5QEJSvxbkgqJnoAdjsR0MDr1pmQQwsGwf7eeV5DjSoCFJPoBtPU7DafMmPjTM5EpjKM7klAwiCQY8IEH/AIlc0x5QADvudjTGU526uHJglM+fNJ26bkn+BmmMprtsp5XMpa/PYkECY6biJ8/5QBTGSpxafWfZJ/qKYzp81tk7E/8ARJ/GmMiDAIfACmFuA/VlIA8+pKVT5+7eetM1ZFatwurrkjr9RHpkRWiMddIW3dY2ycbXspFw2l1ChEeJCkkKHqFA+yeg1ZVcbWUMD5EWOlf6E84VFU2tqethmBFehuxlLRwb0AFFZ0xgG1k8xLGFxiSVdSSVWqiTO89SZ3G8xvYNDZPseksmyfZ4bJ+Pg/tnYzTn/uNRXp7RNt/y95t+ysrNvoPD2DYbsbCxabSOVLbbCGQkfu92EpEeUARtEQDUhI44xtjRI1u9saqignqQqgKCfOhz55ycd5y5ZiTZLOxJPPU3z1J58zfXOjmmG2zzJtSAmTLapgR5TzbDp1G09a3zURoOg/E/85LKxCW5HKsK22Ukj8fYaZuQDwc4TjExJkH0gCPjO+3oKYyInGlJlMz5GZ/9UxlSaU+ykJSpRA/aIV0Pn0nbbp75O9MZUWcg+jZQkbecyZnp/qg7gxBM9ZE0xk181/v/APd/l0xnIxQnd0x7AJ/mKYyMMYwDuVke+CfiP8KYyMmytkz+qCp/a8Q+AO3xpjI6WWkTytoE7nwj+vu6dKYyJ06UximMUximMUxnBSkmSlJPqQCaYyCq2t1SVMtmf3QPZtER8KYyXVj7cgkIJVBhPOUJJ8gSEq5QTsVBKiBvynoX1f1/rmRVi7AsWQASB50CVBNdAWAJ4JHXNNRxr4s4nCZtzN8D9bZrOtHI3mFc01ozVtng02L1lZ3uAs8gi7Yy+Zu79pF20xn7iytLYs5F53H2mKKMNqG+xXmh2x2lHFL3vZOqmmHePCYNLqViEZRXhWTcskruoYLOyIoEhKIgWOd4f0K37qv3fdodpdmr2Z+879nezOzHGk0/aSdsftH2BqO0m1Uep1Gm7T1GjeCTQdnafSytA83ZMWqnn7zRomr1OrVu0OyNJ2hmHhrxQxPEywwV7jdMa7xac1bZd517L6VzNlicTc4bKX+KusbfZq8x9pZKvlXGPe7pNr37SiQ0p1D/AOrqz0Paaa5IWTT6uPvVkJMmnlSONopGjaNpWRUL7kattg1V7uM+eftl+7vW/sZqu1NPq+3f2Y130bNoI0j0HbvZup7Q10PaOi0uug1mm7M0+q1GqXSiLVx73mEbimcIYwWH/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAAHAQEBAAAAAAAAAAAAAAMFBgcICQoEAgH/xABDEAABAwMCBAIGBwUECwAAAAABAgMEAAURBiEHEjFBE1EIFCJhcYEVGDJVlbHWCSNSkaFCYtHjFhckMzaCkqLB4eL/xAAdAQEAAQUBAQEAAAAAAAAAAAAABQEEBgcIAwIJ/8QAPxEAAgEDAwEEBgcGBAcAAAAAAQIDAAQRBRIhMQYTQVEHFCJSYYEVIzJxkaHTkpOx0dTxJCXB8BczNEJTYnP/2gAMAwEAAhEDEQA/AOgCtb1nH+/9/DyHQdBSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpUKRIYiMPypTzUaNGZckSJD7iGmGGGUKceeedcKUNNNNpUtxxakoQhJUogAmnPOATgEnAJ4AJJwPAAEk+ABJ4FPEDzIAycck4A58yQB8aMPsyWWpEZ5qRHfbQ6w+w4h1l5pxIU26062VIcbWkhSFoUUqSQUkgg08SCCCCQQQQQQSCCDzwRT8D9xB/MVFpSlKUpSlKUpSlKUpSlKUpSlKUpSqut2jp8yyL1LKkw7dZESfU0y5DoW4/JCkpU00yg8rXh84Wt2e9BYDSXHEOrDawLprVotPn1W4lgtrC3OJJpZMEnKrhVAPQsATIY0GdzOqBmXwin9Z1KDSbSKW5v5wWEMaNhECM+92wSQVU4ESSOzYREaQqho5vRrDjf09ceJmqFPLnpkfQWjLLpy96ftNii3BEJ5CUOWF3Ut4ly/C/wBvketygFuyXbKxaoLSp7HgqWT2NvfPfTBpo+8/wyCeGKEy43OiROS5SNg2+QkOWEUYEcjVKlblbybTY9KtXa3YxvNdTTW11PctFkKCblY1iRyNirAAqFDcO0skcb3qEfRmkJjUW0qTfrrPb5Faj1lB9V03amGmvW3HYWmlxJr8uWCE8n0vEuWSmO5JtttDa5TMrHqmkWDJFFNGHm3j1i4A2hFTvCB3SSTSuqbXaIJGhJD/AFaEkQzaHrV+jzPby7Ywv+GtH3yb2kWJPaLIkSSShkjO53ySqmRzkWgcsLs3UN+tGi9U6Ru0XTloRECFw5Nttlx1ROXFucSC1coSnWbcqzafkRI96tzNrkvtTnlyz463VRYthdSJdXc3qs1rNFDHEjXCERRXU8mXVonG5VKRsqToscgQ4YOzNtEpb2i21jbfSFvf2txcTzSCEASyW1rCDE5kgl2y5nuVkaB3kTcsTxlRsDyefSUO9aov+o9KCDFj6h0zAt9yksszxIt9xhT2JjvrFrmyI8JxQjrhLTIbnRYSmUyratZBuEdClraS3stzDbDdLaoJGSY9y0q5cM0BIKOo2bkLtEWVkLBCcC11KSHS4LO5nkDwXjvGkkI3906CPKzqrMVcl9pWIzKJElQMRGWpVtVaUpSlKUpSlKUpSlKUpSlKUpVOar4hv8O7JIuzUm5xUKeaQ85a7lItrqUhDqiVrYUEvIKchTLqVtqA3GRirHUtTvdLsZZrOWRCzKJFSSRA6kMMfVnOcEjO1sAnGM5rJuynZ+w7RaqlnqEalBE7Ru0aOAQ6ZB3j7O5lY7fayuFZSSaxIn/tItE2PVAtl10uu5NtKLDt9SxaTMAUhSVl1f0eh90HmKXD62VAElRUCUqwqTt7q5j7uTT7O5iztw8EBmMaKVYENBtdzzuO7JJJYk81uOH0K6UTvg1m9tp2OYwstyIFfI2jCXISNQR4IVXaPAcVnM9Pvg5e4rKkwzNej+sCDEkWiHNLQmRVwZJT45S0FORXnWVrPMoNktpGDlNtF6RIt0a3PZ2GZoyw2PbWyIqOpjkdWyBkqXRSBkglSABgXf8AwM1RFdrbtO0KS7C0kN7cl2aOZZ0DxrgsDLHHIMsdjKpYHk1dDh56SGgLi2wqz6UgMLjxlpiSv9GrMH4/iNNh39++t8uJWUcwSts7nfOSVScPpE0+12iLs1axjJC7I7QbckcKxjZ84AXJk4HKgeEPqHoU1i6WVZ+1k8shUbz314TIY95Vm3sqZDjOAijk537iKrmHxum62vT1ght+owfU1+MppXhPTkMHbx24wZjNNJUUobYbbKUNlSOdQcXmS0rtnrGuXUtse7sbEpK4trZAC4TYI1mmULuA442quVBAGDnDu13o20PsnpMF4sk+oaqJI42up5PqkdmTvTDBlwQSGxud2UnfuyABPqyYAKMAYA/v41rSlVpSlKUpSlKUpSlKUpSlKUpWPPpFocd0BcWxnHM2pfL1wEvpHQHbmXnJzggY61B65lrOdcZCqhHQYy2G8ST/ANuOFII4zyazrsAwj123cZBZJVLfdsYADd4gEfZOd23acgjn34hxzAvMvBJ53Vg5yMe0roRudhk79x786ynj2MDnhs4+QGfE+ddWWb7oF5Bx8CDyo6+B+QFSfRM14XZshwkE4332BwCBsN89CNiBk96jLhVAzjkBAPgWLE8+OMY5+8YqbtJJFUhdwUjaW3E5BPJGT4AYPXPgQRWz3hBdHG4aAVHCWdzgBP2QOxxtnJ22OetWeASM8Yzz5fLy8AOg8KXDbVdV5BOdxI43P1KjBOOoHGazU4KtJevs+UrBWm2PcqjjqqTEHfOAoKVgD2dvKthdj4lNxcMckmEgYztVVMY59nqcY+1nkHA8effS9M/0fZRDIVr1QwYnJCRTFdoAAADYOMAgldisRkZK1satAUpSlKUpSlKUpSlKUpSlKUpSrI8eUD/V/e1hBWoNNgADICVPIBJ7jZWM7jJG3eoXVwPV7olSw7o5AJyMd22cDkjK4J8CR51l/Yl2Gv2S7gFLMmDgH2gTgHjkkDPU4yeADXPlxXZcVeJgQk4DhVzEHl9rm3KiMDJORzEA5A2zWsLosHO4D2RjABGMknBJyMgEdCRnPNdZ2BTuQFcE8ezkZGFHh18zzVE6GQpN4Zyck43SDgHmGDuAPduBue9R1xkq2Rj7PBGMYZsDBJP2WB6n+WQwKRGuRyoOfgHbI6cc8fH862ecJkpEEEpJPIklWegwOuMe/brt0IwRY143JyCVGQcoSQMqVY4Pj9o54Bxxgk5xWePA5sKkXt1AHKzFiNJIGRh9x5QCd84UIwOMdQDvWzOxiZ9Zk6YVU5DDdvJbAyMZAUEjrjmucvS/KP8ALIMjd39xKQCfZVBGu4AgEsplyvGBk4zgishKzytH0pSlKUpSlKUpSlKUpSlKUpSrVcZWPH4famSACU29axkbnw1tOjBxtjw+bPux0UTUfqQJtLhMkiSNwBgYBCluTkE5I/nxWS9k5RHrunsxwBcLjnkblZSFU8HcdoPIwcYyTXM96SWudOcNo991Pqy8xLLaY61JMt9t6Qtya4GYtvhxosdmRPuMyUY6EMQITEqXIdcdU2wt1CSnXtvaXGqXyWdrbvczMoLIoKxogBLSPIxWOOOIkd5I7gKAOfaAPTV3qNroGnSarqF3FZWUYAMshBdy2NkUaIrTzTTKuEhhR5HY525U1i/w79KuxXG+uLs3D/iNerfbbmbdKu9vhaQVbW3m2XPFSu6PavbsbSjHK3Wo066xHn1qioixXZBkpYk7nsZPGoEmoabDNKiy9yxvA7pkZIiW1aRwGOW2Ruq4d3YKAzY7belrTZWZY9L164t4Ju7a4ji0/ukLAspMjakIgxUsYxLIjuGUKo2uF3R+jJxP0ZxW0XE1Fo26KmJbXGavNtnwplovtjmPR1POQLvZLgxEnW99AJ8BTzAYlBt1yI7JZSHl4dqelTaVcvb3qlH5MTxMksEqjjdHNGXSQZwSAwZQw3qhIFbA0rtBZ9odO9c0qRbiJTi4SXfFdWzvlu7uLeXu5YnwWUBlZGwxikdV3Vs94FtYtd8fx/vJUFjm8/V2X1/09YJxk45ulZ/2NUCzuGAxmSJW5yNyI2fu4YZHToR1rnr0tTF9X0+EkER200qrnp3soTOPAnumwfLI8DV9qzGtT0pSlKUpSlKUpSlKUpSlKUpSqC4lsJf0TqZtQKgbNcFED+5FdXn5cgO2/wAOtWd8pa3kPgschJ8hsP8AqAeh6dCKmuz0nd6xp7ePrlvtBzyRIPL4Z68c55xXHd+0WsOqL9qnTzOn4zz7OkdOa/4irD7CZdjVI0o5px9oXxDbBuUWGt9+HaJtzs8+3yY1gv2oIM1MuzXO5Moguyk9pbG979k3XV1p+mBgxRyl36ykncsfq3KqjTiGVHWSWCFkC3EMW7bXpQjvriPQ4bdJGhtbTVdTYKN8TS2QsO7MyD6wbCyxNNCyPFb3E+76mSZq0W3LjPxitvG97iXqy46RtmubQ1qGy60sF5ixYyIWoPU7zpybZ7jo9dnkz5l0eLzLsF6xWa+WyHLubUuTdo0lGpHoW0rfR9LbSI9Ote9awlWCe2miknOyMOk8DC4jZWK4VMB5AXULGQVCoOfptb1ddbm1G8EKX8Xe291DKtuoEpjkt5Fa1kBBOGJBCOqSkzAhwzHpI/Zzau1lfOJGkbtqW3tac1Hq/hJqhGs9KyLzqCffCjTuqYwtmoLkxqSVEecbtciS1Z2nNM2mbouwXDUd20vGl2HUsLUVqnaf7YQWqWN3DbSGe3tNUga1nWKBYEFzbqXgia2TaC3tSbbl1upo4kuT6xbvBJH0H6MLy+l1eJ7hBBJfaJdeu2zTTyySG1u17q5lW4cq4Yhow9sjWkMjXFshhkWaJunTgcyUaQkvKBzIvMlYUe6ERITeB7gsOH4k4q/7JR7NLLZ+3Mx+7aqIfD3lbxPyGM4j6UpxL2m7sdILKFccZy8kz5OPAgjAPQg84Iq8lZRWt6UpSlKUpSlKyi+qVxH++tE/iV9/TdSn0Rd+D23zklB+eIGH5n/SrL16L3Jfwj/Up9UriP8AfWifxK+/pun0Pd+/a/vJv6anr0XuS/hH+pT6pXEf760T+JX39N0+h7v37X95N/TU9ei9yX8I/wBSn1SuI/31on8Svv6bp9D3fv2v7yb+mp69F7kv4R/qU+qVxH++tE/iV9/TdPoe79+1/eTf01PXovcl/CP9SqA4nei1xAtug9YTJF20i81E0xfZTjUWfelvuIYtcx1SGUu2BhtTqg2fDS46hBXyhS0g8wtL3R7n1eYs8PsQysQjyEkBedpMI56csFwfEDLCQ0q/iXUbF9si7b21+0FAw06AnKycBQcnn7s1xaemRw2mcRIb7tpFsd1Zpx67P2Nm8mULTdGbpbZVru1huyoj0d8RLhGkty4bwcU1A1Da7DdJDMiNAdivas0nU10q9LTNL6ndFEuBBtEsTwTRyxzx7gQzRyKyuuAXt5Z40Ks6svVvafsye0uiItp3I1GzLTWQuO8EEvew9zPaXBRwe7mjcujfZS5ht5JFZEZDpJtXoy6Wnaq1Pp/WnB/jXPc1E8q6R7nY9L3GTxAjaqetuoHWolqmxLlfdFSNLOalfcaus5mPfVC0wNNy1yG5UiamVtJ+0cot7a4sdX0VfV2EckE11GtibTvoS7zApHex3UdooEUbNEqzyyqyOioyc7r2HnjvLqz1Ds52iaSbEqvb2M0l6t53Vwe7iljaeylsHuXIkmjNwzwx20ituMhrpw/Z/wDo+3bh7bLxrrWhvMW/X+02+xaZ0xer0xeZmidLpDF2vzD71uai2OLO1bq4O3h+3WuIUWuy2/TVumy515jXSQrT/aXW4dQaOztWhaFJmnubuKGSGO6nAaK3KrMzTOtvbCOPvpnYyzPcSRokLxKOiOw/ZK57PW1xf6gs0V/eQRQQ2c0qznT7QBDKrtGViEt3cqZnjiBWOKO2idnlSRj0w+jr6N2ttX8ItM6ntVw0xEgXpy9SGGblOurU0erXqfbFKebjWWWykOGAXGuSQ5zMLbWrlUpTaNkdk9JuZNCsZla3Xvlkch2lRsd7IFLAQuMkDzOAB4YA579JGoQnthqsaq7CBraL2dhH/SQu2PbCjDsykAA5B3KCDm931S+I/wB86K/Er5+nKyT6Iuveg/bfPy+r/iR86wb16L3Jfwj/AFKfVL4j/fOivxK+fpyn0Rde9B+2/wCX1Q+ecfDNPXovcl/CP9Sn1S+I/wB86K/Er5+nKfRF170H7b/l9UPnnHwzT16L3Jfwj/Up9UviP986K/Er5+nKfRF170H7b/l9UPnnHwzT16L3Jfwj/Up9UviP986K/Er5/P8A4dp9EXXvQftv+X1Q+ecfDNPXovcl/CP9Ss9zdQOqQPin/MrJKjK+xdmCcEBPxWB+STSlfv0tFzgrQD29sb7Z/hHSlKjJuURRx4oHvUUgdM/xE/yBpSvQmSws4S6g/PA79zgdqUqkNdwE3bTN9t2A4J9mnw8D2goSo0mOobZzs4RjB38uo8Z13RsvOSrDAOCcg8EYYkDG7gdQOma97ZzHPE4JG2RHBHmrgjPQ46nhh0Oc9K4BOMgTGv8APQsHmEp9Ck5wchakk79BvjqO2cbCuZrtQtw4B53gspBBUAjk55wcHHHgcZrvrTG32cLA5DqpUnAHKjBznGD168DoCeKlXCttLt5bCwOXnQQk77hRPUEdRj4Ee81EXX2lGAcjPOCPEZwePAD86yGDmNDhRgMMAEYIYjKgceBznPXIraVw/joTbGy2kJTyJST5+yBkA9dznHYdKta8brnDDOB33XwwTjjJA5z06+NdN/otNR7P6PvCyO6tLRXpKDNKVYSSbm5IuZOM9V+uhWSBnmz3JrqHsshj7P6SjLtIsYHxjH/NQSZ6+JYnBAIJIyRg1wb23kM3a3tBISD/AJpdR8D/AMEhhzkEgghBjAAx99X0XfbenIDyVEdRkf0I5gfl5YqfrFCQoJJwB/bwrxualhJ+yQD5K3z06HKcYB7g526UqoIPIr4GpGScBvJPbH/3SlRhei4OZCTjpsEjB2z9r/E+6lK+vpRw7AKB8ylBA+OAPzpSj1teTujDg8s5PbbcDPc9ABtuTSlS1bRScKSpB+GPzBHSlK8L8JDmSCQSc5ByObO5IOTvkjY4HXFKVKHoj7YJySkHdQJOB5nByBn4E+XWlfJGckjPkOmPPmpK+/co+7bqilIBGAeceZwDg465A2zt0OFeW5xht6mPHLbcEHJGCPvx0B4POOtSe56vnW+I45IfwylBJJOQOvYk9AMkkY3xv3owJUgdcHGfPw/P5efFViaUsCWG0DPIGTnIGMDjkHOfL41w6+knb/VuJGrILaSkRNR3uOlQHs+G1cpKGwCCnccmRjHkT2rmjU4+7vbj/wC86AHnARwozgjOAMeGevNd99m5+/0bTZgRl7OzkJyDkyQIzAZ65zjjJGM+dUbwxjvN3ZpaclIWlPN3J5sqUMDPltgYxn3VBXPOMkAgAKvBLKDhTnzwCTx48gcVmES4jALKcZ5GcMd2cDAxwDkk46YGTW0bh3KcctjSHAPZQnJGf7ITnt5dBvntgbVajqOccgficeTfwPy61aXxIBKhek2FIGM55Ph1z8iM10R8K5E2PoLQ9pTIT4Vt0jpyAAk7oEOzwo+Nj9r93uep3yM7V1dpMXc6bYR9ClnbIRjGCsKg8Hnr54PnX56do5ln1vWLnOWn1S+kQ9ft3UrHkFlOVzznGAMAHNXdiwX3uUqUvlIz1JUry+ycAHbOMd8AdRI1DIjOoHCrg89STnoB4Y56kfOqli21QSBylAA3JJyTjGcnOScdd/fjIpVwqhBgeeT9/wCdTliC23uRzHzUPdg+znH8/j1pVQAowBgD+/jUyairVgNtKOOns+eTtn55xSq1MW7Y6rBcUEDyBye/fBx2O48xsaUqe0pXwtKCD4gSU4wSoDAB26npnOKUqUyk25sFSleGcdUbBOAOoOBv5775z5UpVKT5zSAoMKCyOYfvE7YPUHGcjoNwAcZJ60qhPXHJA6dOfAZ+NUHcZ1wWlQSweXsW+hAGSebqRjrgeQwe6rMuzcMwx93Pn4dR0x0PXI6E2uv1suE9t5ClO8igoeG6DggjGAoAbYwMcpO/2h1KvZmV+Q24DA2fZBJOOWIGPDHI6fGuR70/eGWueFnF7WUvUOlrtabFfNVXy46cvjsJ82O6224XSVNgrg3VCFQXpCYrzSZMJDxlRHQtmSy04nB0J2n0m7t9VvXkgeKGS4uZoZtjGGZZZXmVYnAIJVW9tcBo+jKOldoejvtFp2o9ntIhtLyCa6tbGytry2WZRPBLBCkTB42ZZQhKnZIQqSLhlJyQMaeGN7jOTIiAocwUkqJIHVYPTqcbZ/ngA5rBbpCD0xsJDA5B5OcYP/sc/wAOK25G4kQEDkHBbGCeFzkZI4OegHXqa2ucGtO37WRt9q0tap15nznA2I9vjOyC0hZ5fGlrbSpESKgpKnJUhTbDSErUtaUAmvbTNOvdSuooLK2kuJGdQQiFlUE9ZGwVjUeMj4VMgsagO0Ot6Xo2nXF1ql9BZxosrjvXRWkcbykccZO+WSQgrHHGC0jDaOeRvy0DpC/2SDGYlSH1pZZbbQl5XKhsNoShICAoghITjJHXoK6sjUIiIAAEUKAPJRgfMgZPmc8DpX56STCSZ52BLyySOTk8ZPljJLZJOScE4ycZN8Le/c46UJUokdMIQVA74z2GRvgAjf45r7rwBZASGweMjAP3cnPn4VXUG6t4HjhSzygkkgEY2OwG/TBPNjvSrpXDAEA8jnPUHy+PORx99VdCuVuVygISlftbkgqJz0AOx2I6HA69aVUEMMg5B/t41PkONKwEKSfIDbPU7DbPcnHzpVaiUpUmduSgcIwSDj2QMH/mVzZx2wADvudjSlS52VIczglOe/Nk7dNyT/I5pSpa7GU8rmUtffYkEDOOm4xnv/TAFKV5Ta0HqrbyBJ/MfmaUr4+i2ydif+jJ/OlKiCwIfxlhxzP2fZ5QevXY52923elUIB6ioMzh5ZbxFeh3Sy2ybEkpLT8S4xmJsZ5tRBUl6O+2424g4yUrQQTvuelCAQQQGBBBDAEEEYIIIIPFEHdsrxlkdDlGR2VlPmGBBH49OOlW7R6Jno8iUZyuDXCtE4kq9cZ4d6QRJKjuVKfVZ1PE825POCe/arM6bpxbcbCyLZzuNrAWyPHJjJPTxPPjUmutayi7E1jVkTG3YupXqpjOcbFnC4zz08/M1cm28NdNWKKiHY7LZ7ZFbGG4sC3xoLLfTJbajNNtJJxuQhO21XUcUcShIo0jQdEjUIo+5VAUfIVHyySXDM08ss7sctJNLJLIxzn2pJGZzzzy3Uk9Scx3NMNtkkRThJzzIUDjGDkZB2Hv9/y+68hGg6D8z/OvMq0pbyOVYVtgKSR+fuPalfZAPBr8TbE4ycg+WAMfPO+3kKUqIm2lJynOexzn/wBUpUyaU+ykJSpRA/iIV0Pfpnbbp8cnelKmLNwfRsoZG3fOTnPT+yDuDjBOeuRmlK9X0X/f/wC7/LpSv0WoZ3dOPcBn+opSowtjAO5WR8cE/Mf4UpUZMKMnP7oKz/F7Q+QO3zpSo6WWkZ5W0DO59kf+fh06UpUTp0pSlKUpSlKUpSvwpSTkpST5kAmlKgqjR1ZKmWzn+6B7tsYx8qUrzqt8cgkIJVg4TzlCSewJCVcoJ2KglRA35T0L7v8Af8aqMZGcgZGSACQPHAJUE46AsATwSOtYajjXxZtNkvbl74H62vV9aNxmWVzTWjNWw7GmC9ChzbBDuCJbF3vMue0iW0xf5EKJGLNxedt8S1FFm1DOtWNDWNSjil73SbqaYd48JgtblYhGUV4Vk3LJK7qGCzsiKBISiIFjneHoVvRV6PtQ1LTV0z0ndndM0xxaW+pJrHaPQLjUmuo7m4ttTuLN4JLDTre1laB5tJiup5+8s0S7ubtW1DSLTULw8NeKFp4mQLFNtumNd2tN6jXd51676VvMK02mTZrpPtUq2zr1Mt8SEqcqRb3vCTF8dpRIaU6h/wDd1J2OppfJCyW93H3qyEmS3lSONopGjaNpWRUL7kbG3IOMZ3cVrztl6O73sZdapb3eu9mL76NmsI0jsNd0251C+h1Gytb6C8ttMt7q4ultRFdx73mEbjDOEMYLD//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEEAgMAAAAAAAAAAAAAAAUDBAYIAQcCCQr/xABFEAABAwMCBAIFCAYHCQAAAAABAgQRAwUGACEHEjFBE1EIImFxgQkUFRgjMpGxJUVSVZXWJGKEocHR4yZCgpKi4eLw8f/EABwBAQACAwEBAQAAAAAAAAAAAAAEBQECAwYHCP/EADkRAAIBAwMBBAcHAwUBAQAAAAECEQADIQQSMUEFEyJRFDJSYXGBkQYVI5Oh09QHQrEzwdHw8WKy/9oADAMBAAIRAxEAPwD6ANfN69x/3/vu8hwOBTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKVJUrNd6yWq6VruNSm+qJosqiGTlVN3VVITTbVBT5KyzyqhNNSj6qttjA+EAkMAeDtaMCZmMCBMmsblyNy+HnxLjMHryCYI5BrN7Rwkz69OFtmtkNGqlCigPXjNoK9UIK0NW/i1wqs5rAAU6aEkAqQaqqaFpUdtOh1Tm3Ya2zztAa4qbn5FtS0AuwyB5FTw6k8b2ps6dQ11mAMHwqXIUyd7Aeqg6k9cAE4rH8hwrKcVTQXf7M6t9JzyilWWaVaj4iklQoVarapWpt3XKCVNHCqTpISrmojlVG1y09ow4AyVlWVwGEyrFCwVhtMqSDjjitrd+zdJFtwxHTIJHtAMASvEOAVMiDkTi2uddaaUppSmlKaUppSmlKaUppSmlKaUrZ/gdieB5Da3L16zNyye1P6SnlG5+J9HNmjk1gwWxoJUGTtVQN65rfSAUqlXQPDRTT4Sq062mmfTqFKeld4Tc70lQLSkECyT+GWaJY3IztUQCZq9Ze1Nu8V3OunNsbe6UMTcyD3pPiUCTtCwDAk7iCuyLhoKNYlrbUukLohJoo8EoStvRqeAoK5ymlzAGmrlSErPhoUhY5Bqq1Z1Fm8RptFcvJfUpdRL9lka7ZVrllyFuNsDGQxEoX7vG1TGtnbcWL+qt2WRt67lubwjFA6qAkMVGYEkgOVnNSbGmtCQHltr0t01ED5w2qqQoDmAQSqkpPIZTB5JKUkddSNK920QdXo9TKxtC39PeYSQQECsnWQdoA8t0NGmot22Udzq0dRIYG26A7jGSQQwKwZmCGCxg1GO7UXq3DSnZXYbKSkprV6iT85qlQICqBVVCF0VgLp1EKShMIqIXziEaXLT6hb1qxoL+ns3bRS5de+1t7puRuDhd6Km8BEKXQgAkREDNsGz3VxtTZa6rKVtW1dlRQPC4uEJvJGChVoBMjisKufCHB6tuuN0ye0pZN2VurvXb9m4r0LgyotKbis4cUw0KqTwoQieV40dKUlCRTBVKDJ7I0Wj0llrWs22bWxClttR3l6y/iVktd0W3CASEZSJhQJG0Y1Wv1l25v0xd7haNrIotXMz4twJUscSrKw4kDjQ9+lmh88RbqtaswQ6cJY1nNMUnFVomqsNqtekkqTTrVKIQurTSpSULKkpJAB1xYKGYIWZAzbGYAMVk7SwGA0RujEzGKt13FVLgB9q7gvq7oG7bMyszBkyIyeatNYramlKaUppSmlKaUppSmlKaUrYH0f3ZpXfImoOzi1tq3KZ3Ld4ETEjdIcnzgHy1F1jFbUqYOcyAfUbjqecxxUe+qE2i4Bh4EiYJBE/Ly4Mz0raIM/HBWVLAgcpCiAYMHaSUxG0JE9THfzbWw7b9x4iMxjjk4jPETOZgVItDu1CqcqBB2J4iD1wAIEkYPEc5rlvTqJChTqrCRuSVLJA7J2mTMmB2Mb6jhLodkVnUEZMmDI4ABC8EycwfImujurCO7QRkQAc/Oc8gAcz1MVMtkKEqUtZjaFkEzvJ2JgQRAHs3mZsdNbK7xvd8qSCxGMKTII6+KM+QqPcI8ICLjxSVQz6whlBlfdkzWK8THim3D/LKqlEBdnctp8w8AaR5EHxgCO4Md9WVhAzxnAJBI3gEEcz8x4ifdxXGJe0oIUG5OcDAOPdJOAOsADNeuzVnUqmlKaUppSmlKaUppSmlKaUppSu6OBS0jMXVJZgOLE8pAbwVB0xqwQN/uU165XgCjYBYKzDzgDxQekgx8/dXDUGEXnLqB+pzkYgHicxiJI27FRQQqnsUqIJkbgiNwRHWBMyNtgN9edYQxGMEjEkD3AkAkDiSATzArraMKjEA8NBUgHMwVJn6/H3VcNZlcTEpk7dIXsd56kHaenx1zRNpYyTuIMYgECMdciOvStyYkAkyR0HEE5kyDMcTnrGamqaSlABEGSTvO8/h0jU9PAiKxAaAIJmWJ4EbSTJ6AZ8+vNlBYZAJBHOYGQAJ4Ek44knrXV/G1waHDW9pmC5q2tuOnQ3NpVI+KKSh5wdS9IPFI2kSSSoAknf7yTn3mOkDFcnAa4rD+1gOOu4A56eXy99aFasakU0pTSlNKU0pTSlNKU0pTSlNKV2nwareHn1qpSB85b3OjvsJTbnTgAnyKqAHbcjcdRzurutvkiEciD1Ck5HB46j4Qc1x1H+mPMOuImeZ+lbo0DRCyFrpg0wPs1FKlEEED1ZJ22MwfOe+vOurB23QYZpKzE7iIyOmOpyYxFZsuGQZz7yJznoBwZHHSetSIqIUrlCgSBO0xG3Q9D1HQnXPcu4KSN0yARMkZ4ODHNdiI5ImTjMgYgnEZk8E8Zq9p866hPKoCOh6AbeYHUgdI7zqSt4m9tJUWyCBMySCADPAkkCDHzNaMYGQSDgwQDBB8yPcOes9K6W9IVyKGDNaAO7u/MqPL5pptX7gk+xKqKZ6wSkbEjVrpk2xEGFBLbmJ8SyAJycyZMRwMRUdZN2J6Kxw3hCtIHVZYk+yYBMNGNJtTKlU0pTSlNKU0pTSlNKU0pTSlNKVnPDSv8ANs7xmpMc1xFA/wBqo1m0fHxY1q0bTILAiCByQcHy8/Oud4E2niJickgYIJnbB4HA54Mis79JPj5hfon8Kcw41cR3tRhj9jpqpsGrBs1fX+/X5z4DGx2G0N3NVsHj+7UWS6tao7etrTa2wuWQZA+tdntT+5NaprZ1Op7i34mM7iSdiKIMkieCRhQWYnaoZ9qNw0yXCq7QCTCqNy84Etg7QAeTAAliQATXpOyr5Zj0i2+eWeyo4WcJ+DrS8M8WyTDLJxgvd3u2U5XZMssl6ujVnZRbb5hDq55rVosH1ktdgtuLXi15Bk6KbHFchvtqoVshXh9Bpmts9jv9YUa7bc2YtC2bbWrZuXCbdxbdnxi/cZrge3ZzctByLZsV0/jVb91bO4WyjFSxY3AfBbXerXLm4FAndgs0bGKhmr22eiz6dN64p5fbuE3GHAWHDPiZePpJeNumFwyC4Yjnreyv8iaXI2inl+L4Ll+M33kxfIq9LG7/AI7XbJpWK7Nm2R3N8xrNhBtLpH/Fss9wIssjspZAyh2C3LRe3d2hrZLK3qmdgBBrnqtNf04IJV1DkboKsQJGVYhgNwBmABIUnInY30l3IRbsbZDYVnz1yEgwP6K3b0p5RsY+eET25j56vNMSVaSThRnJgbgP0FQrKhbrgYEDEziM9Z5jn5YrUPUqpdNKU0pTSlNKU0pTSlNKU0pTSlZHh9YN8sxisTCad/s6lQY9T6Qbhe/aUkjWCYHIGQJIJEkgcAjz860uZtuP/hv8GtY/ll8Bo8ROHfAHHL+/tdpwK6cZn9tyi6X7I7Vitht7p1w1zSvbl3W/Xu1X+12qldbMwynFaLx7j95Zqr5FTtzxmG1yqVkVy3WsHU3UFx7qhWRLK3HuNtvW5IQOveFTtO3vbTAAMrnYFrPZ8bkVmC71dZMAbW3bgSQwG5cRtJb1P7jXwJekLeM3ZcScctfEXjtSyHJ8Oo2vPMUyK2sKKmzLCszx7Espwey2evi9iaXKx5XZWSlU0YbcksMMw+mWbTGblbGVd2pz7/s21p20ne6bQtbW6zWNRaZvCXsu9prpNy6dyOd5a4Fe+/h3qxnZX6m7dS+1u/qGuuvdujC2p2i4ouBTtFvadgU+IwpYhIld30vfJb51xX4uXzhPl+XcQXGYVct9K/Asz4fuKNm4bquTXH6udY1deIVmyKw4tSxnNLC+qWBoh3ccjYN3vCTGq7S+4tZ7ZXuWW3BzS8T2rp9Lpu0PR9Lp2sdzYe1eJN5ULQzJcV7rXrLES7LaYC9c3Kz3bSIrPb2bl65oy+purcF1GI8QCqqyV3eqN0kiQ8AkjxCCfqj9JVz4lzxdsTKqLG4uD/aa7amPx+af3aaYQhPn/sWqFa/1H+f/AObVayak1IppSmlKaUppStovqlcR/wB9YT/Er7/LerT7o1fR9N87l0H5xYYfqf8AaoXp1r2Lv0t/uU+qVxH/AH1hP8Svv8t6fc+r9vS/mXv41PTrXsXfpb/cp9UriP8AvrCf4lff5b0+59X7el/MvfxqenWvYu/S3+5T6pXEf99YT/Er7/Len3Pq/b0v5l7+NT0617F36W/3KfVK4j/vrCf4lff5b0+59X7el/MvfxqenWvYu/S3+5Vyy9FTiMxeNHpvOFqDNzQdFKLjfCtQb1UVSEA44kFR5ITKkiYkjrrVuyNWFP4mmGOQ91jPQQ1hRnjJETOYisNrbRDDZdEqRkJzB8nNVfSH4K4v6QfDDJuFmV1nlvaXtFsuNnyG1paKveH5fjd3a5DhuaWAv27tkL3imS2y2Xu30nzV3bXlVn8wurJ9anb1k48deuGxqHu+shFxbtslgl21cDWrtp9pBKvbLKSIYBjtIOa76WVVWDFGElWUkFSSSCIIyCFYTMMAYxXyWZb8k76YnCHjw4yCyeiXh3pCWvMad2tHFPPMMzbhs2s3GexurlfbxcqVxxriUu0Zfwjvue2l3jWD3JpYbg+xHGk2S55FWyPI7xcKV7bzz2pptRpBYPat/SLZCnRoLN/vNG8W0TYbH4Oot6cq98NdRblxmFpVtW0Aeandm4HGntSQwvMrAI44LMrruUXFIEIYRbbSHu3EZPfR8m78nfV9H5xZOJPETh/i3Cp9hyc+t/BvgvieaZLnzXhrj+a5bk96pvMsya7XV9ZbrmdnsGU3TEbHRxNuq02GzX7MKrrIctueWV3dpr72re8zMdTc1T3RZN3UXLdu2br2rKWn2Kk7bbNbVzJUMVt/hIbYnW+6d2qIht27Yc7JbaV3FgiyxBXhoJYElQWIE17IOJHBLMOJt4aXix3DHWjBjbkW40rs7uVByp0h06cVaiEM7S+peCaTiihKlVk1CtFQKQEhKj6bs7s/UanTi7bayq72T8R7iklYJjZauAjxjkj59K06lLVx1YMxBxEYQ5A5kkxIkDrLDr139UviPt+mMKEg/rK97ewxjp3PaJHmRqd9z6v29L+Ze/jVn0617F36W/3KfVL4j7fpjChIP6yve3sMY6dz2iR5kafc+r9vS/mXv41PTrXsXfpb/cp9UviPt+mMKEg/rK97ewxjp3PaJHmRp9z6v29L+Ze/jU9Otexd+lv9yn1S+I+36YwoSD+sr3t7DGOnc9okeZGn3Pq/b0v5l7+NT0617F36W/3KD0S+I+03jCxPX9JXvb2H/Z3qe0SPMjT7n1ft6X8y9/Gp6da9i79Lf7lb7m6gdUge9P8Aqa9JVZXmLtQJggJ96wPySdKVz9LNZgrQD29cb7T+yOmlKrJuTRRjxQPaopA6T+0T+AOlKuEuaCzCaqD8YHfuYHbSlVZCkkgggg7j1ge3QdfcOvTWCAcGlavXNYpOatNU0/DqVKSgrcjkWUwYHnMHeZ6mNfIu0T3WpvphPHdRiQohgzyCJUmOnJxBIEKL3TeK0FWSx6fDMDHQZJJPPuqvbq42O0g9jzTsrmGwEQN59sgGNVRdSGEHawAAByu0Y5EGTHXjmrkoCpRsqYgZEARAkGTkTM+6s0RWRyc8+rEyDM//AHYDz289ddPeCYwCDuBL9REEA4HMGPZk81VsGU7WEFemDE55H/NZ7jrptQtVNdaqimatWuoySNhUWhMg7jZERB3PUjp9X7Cz2ZYPtm5cjy3XGA+cKJ9/1NFfJN+5iIgcgjBOJBOQIBkAg45BqSXfLejYVkqI6jmH5jmB/wDfPVvXEkKCSYA/86VZ1MlZJ+6QD5K3np0MpiAe4M7dNKyCDkV4DJKJMCnJPaP/AD0pVYXo1BzISY6bBIg7T97/ADPs0pXl9KVDsAoHzKUED3wB+elKVrbWTuiKg8pk9ttwJ7noANtydKVGrpFJhSVIPuj8wR00pVjXZIqSQSCTMgyOadyQZO8kbGB1jSlRFZpXpgmSUg7qBJgeZgyBPuJ8uulakTJInyHEeeaha9a5UN6dRSkpAjY8wkbyJII67xAHuOlctziG3qbcZbbBBkiCPjHAODmOasHOaPrTSVWr1wmkgElaySEwZjlUZkco3PsHYaVqHukE7lACzJGSZIAEAxJBBJBiPnWAXO4pfE3CksKpPSXaFpJhSa4FZKhAnZKpjoTG20H5B9oPBr9WoY+G/eIEY5Yyx3CcnEDAUeEmS3q+ys2QzMJZQY6lsqQIxICsSMRnEiqLF1UC0jnMyPwJEEe0GAYjY99zryzX3LnaSVEwPVkAZJ2wekjM9PdVt5+6foBM/wCce731mlJ0tVJKishMQeYwk7xvv06QCY8gJjU9WB2sMqSCORiefPHMdYiuGog23xJUKZjgF1EzECTjnNWCbm9rvKranX+xpKKYCiCiPvbc0AlUkgJ6+3c/aOyFCdmaFRGNNbOCSJZdxyc8k/7Yrxep2vcuwQbhuuBtJEEGSMNiEGZOYPXFZC1ZOHHIVLWUkSCfWUrYQR1AnYnYe4drGuKIWA2wogy/JYzgBekZHIn31kjW2qCQEp5QDJJ6mesTAMbjvEDboNK7qoQQPOT8f1qaoMadPcjmPmoeyD6sx+Pv66VkAKIAgD/3rUlSarVAp0lGOnq+cnafjMaVmpCnbKyoKyEA9huR16+Xbseu8aUqe0pXgtKCD4gSUxBKgIAO3U9JmNKVEuhbaYKlnk2P3DygQBEgwN/j36baUrFH76igENyFkSPtE7QeoMEyOnUAH8TpWCeYyQOOM9BPvrA7i+uC0qCG55YMGn0MCSQrqR5xHUD3qhl2bDMI+GfPpyOI4PMjgnq+/W24PUVkldTkKVAU6oURBSQPW5RAjYeqRM7mN1drhDjwtJHSDmSOpiIgn31jFR+LPbmjN7Qd0UNmyG4q02lZ1R5KY5SVrboqGgkIIJU4TTpgE8q1cpCfmv2l7I1x1V7V2bD3rN0BibQLFWZPEGAyACDkggTkspr0PZeosKiW2cIw8IDwoImNwzkwxESSAGkQQasmucYompyLyawU10zChUvNtQsdzsXAIKehH3pBO0b+AazftOVNq6sGINu4u7JALQYgzAExggzJr0JAIVt4JYEkAerHq5BggiIAjbx0rM6GXWmvSShg5VdCoeqLUlT+ksgg8pcNgpolXeKlZEbTuRNv2d2Z2hqSEtaTUMGKkM1m4iIG9YuzDu1AJkHcNw+GK/VaizaQs11VaPVkFmGfDsJgkySJHvGM1G2GyX8P39xc1HHK9funlNvXXyIoU69ZVRFEDmgikginJEQmd9fatJZOn0unsEybNm1aJ5k20CEj3YxgYjwrwPHOy949yJDO7CcFAzHmJndPH9tdsW9xc2yUhajyjaKaFKEDaYhIJ69CN9+s6kVxBKAw0ExIgH4ZMjgzWdsbrTgeOFLPKCSSARGx2A36QTzR30qUrhgCAcjM8g+XvzIx8ay5lcrcrlAQlK/W3JBUTPQA7HYjoYHXrpWQQwkGQf8AzrU8ipSVAQpJ8gNp6nYbT3Jj46VmqmlKhqtyUDCIJBj1QIP/ABK5pjtAAO+52OlKjqrpxUmCUz35pO3Tck/gZ0pUbVbKrK5lLX32JBAmOm4ie/8AdAGlKtTa0+c+yT/iNKV4fRdMnYn/AJJP56UqoLAivE0KlSfu+ryg9euxnb2bd9KwQDyKrJwxlV3qsGw3MCqAuJETsJ9/n7emlad1b9n9W/5qsMAsZIK29MEdPDppA7/tBUQT2idYIB5APxz+lbhQONw+DMP8EYHQcDgVUGF22jJotmylbwV0glUewgQDvv0GwjprNam2hmQTJBMsxJIBAJJMk5Px5OatV4xTpklLUgJk8yFA7QOkg7DfuNp66UFtBwP1P/NWyrQmnI5VhW2ykkfn7DpW5AODXCbYmJMg+UAR8Z328hpSqibaUmUzPYzP/bSlSVJVeikJSpRA/aIV0PfpO23T3yd9KVI0bhXRsoSNu8yZnp/ug7gxBM9ZE6Uq6+i/6/8A1f6elK5FqE71THsAn+8aUqsLZQB3KyPfBPxH+WlKrJZNkz9kFT+16w+AO3x0pVdNGkieWmgTufVH+Pu6dNKVU6dNKU0pTSlNKU0pXBSkmSlJPmQCdKVRU2bqkqo0zP8AVA9m0RHw0pVuq3tyCQglUGE85QknsCQlXKCdioJUQN+U9C+H/f8ANZESJkCRJABIHWASoJjgFgCcEjmtNRxr4s2myXupe+B+bXq+0jcXllqY1hmWs7GljWZM3tgZ3BDuhd7y7f0kO6VC/uGTRsaNxrVbe0tRRZshfWrzQ7Y7St2rve9k6q9eHePZNjS6lbQtlFeytzcty67qGC32RFAuEoiBbd97P6Fb+lX9Pu0O0uzV7M/qd9nezOzHGk0/aSdsfaPsDUdpNqrep1Gm7T1Gjexc0HZ2n0t1rD3uybWqv3+80aJq9Tq1btDsjSdodw8NeKFp4mMLE9tuMZ3a03ptd61Wtd8VvLK02lzZro/tTq2vr08t7Rkp8pxb63hJa+PSUSKSqqK/2erPQ9pprkssmn1dvvVuEm5p7qW7bWrjW2ttdZFQvuRo2yDETuxXzz7Zf071v2M1Xamn1fbv2Y133be0FtLeg7d7N1PaGus9o6LS66xrNN2Zp9VqNUulFrV2973hbcQzhDbBYf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEEAwEBAAAAAAAAAAAAAAUDBgcIAgQJAQr/xABEEAABAwMDAgIFCQMJCQAAAAABAgMEBQYRABIhBzETQQgUIlFhFRgyVXGBlbHWCSNSFhdDYoKRodHjQlOSosHS4eLw/8QAHQEBAAEFAQEBAAAAAAAAAAAAAAUCAwQGBwEICf/EADoRAAICAQMCBAMHAwMCBwAAAAECAxEABBIhBTEGE0FRFCLRBxUyUmFxoiNCkoGRofDxJDNTYmOx4f/aAAwDAQACEQMRAD8A/QBrmwBAomz71V/6DN4xr3GNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGSlKolZrjy49GpVRqr7aQtxqnQ5ExbaCcBbiY7bhbQTwFL2pJ4znVyKGWYlYo3kYCyEUsQP9P+uD7ZbklihXdLIka9tzsqi6Jq2IvgHLtp/SnqLUpRiMWfW2XQNxVUIa6YwRzkokVH1Zh0jH0WnFr7AJJIBvnQ61SQ2lnTbRO+Nk71X4wt9xwLPr2zFfqegQBm1URB7bG8w8eu1LIH6mhyBdkA5CrPo53lS6QxMjON1SsIiLl1WhxY6wunlDaXVRGJ3jLZqMxttRDjTLbQU6263FXKCULcvy9L1EccbL/UkZXaSNUceXtQuAGohyaoClJP4A4BIwo+u6Z9QYmRo4t+wTsRR5IBZKBUE8AljQNttF1Z46LdSfUZNQXbbrTUZh2QtlyXB9bcQygOOJZiIkrfceCTlMcI8dZ9lDalkJNgaDWFSwg49AXVXY1e1UJ3M/PCAFyf7cyfvfp29U+IsmrYI2xd3ClmIACn1b0HNVzmNn4MyMFmTEkMBt1UdwvMuNbH0HC2V70p2uoIO9s4WnBykaxSGF2rimKG0YAML4JIoGgSOeRyLBGSCujVtdG3KHWmU2p/uFHke9drF9xnV15lWNMY0xjTGNMY0xjTGNMY0xjTGbZ+jU5SXGq7CTUp0CsqfalSkkIRBcpjbXgRFsOJyv1xqY++Xw+UthpTIZyVPhey+H54EGqh80xTNsLsQoXyh+EK7chiWbeOxGz1Gaz4gWQHTyEL5I3JuBO4SMNxDCq2kINpBu91/wBoO3smh0mRBkIbrlUcffiBhpcWegSkvhaVIejJVLisetKcQgpMl8hPJCgCpGpjVSR+XtSXcwCt/TliDseQdtuqnkc3VAmrqzri/M3LUld6vnniu/cD/f8ATJijWvOjKUxXKnHl014LLLUwvuVBCCdzanpMmXIcemJT7LkpstNyMndFbXtcRhQaeYSP506iF7aOMM9ruAsbnkfcaNEgICCRtFgZ7YraAAQTuPNtf4T6VwBxz/oci67ZtLa8I0uA1ObabSp11DmFlpSnNrbzakkOltannNqlp2+Ig+0FDbbl6fpjMjnTnUMnNhggUHgnawIYiyaZxuZie4wXKjbuAUnkVyT39QCKr0se9euPL4tqhP2xNh1phtiG7BletuNOsvPxY0RHjMSG9rkgmYxtXJQSHAFoaSoKO5CsqeHTyaeQTxCKJ4yS7SKStUwZQzH5wBuQgEggXWXNNJLDPC2nszCRVUAkAl2ACsARaNdMLrbd1nmxOREbmy0QHXn4KJL6Yb0htLUh2Kl1QjuPtIUtLbq2glTiEqISokA4GtLcIHcRszRh3EbOArMgY7CygkAlaNXY9ebzoMZcxoZFVZCimRVJZVcqNyhj3AawD6+mdXVOV40xjTGNMY0xjTGNMY0xjTGZM6YXH/Jmp1qoLTvjihqTIRkgls1SmIJQR2WgOKUlRyBjkEEgwniHWy9K6P1DqUALSaWJJXQbiJYhJHG6MVIKj51IINBwpIaqyL6qqtDDvNKNQi3xYLpIoIJquCbHY9u9ZsdSOr1vrjF1iSzsaV+9ZmKR4yV44CPE3bwDlJIKSn6RAAzricn2yPFppjHMUkhcqsLgvvUXYjmXsV9SyIOw3XxkUOmQ7y5KkENZpAV7MSeT7flAA/TLmi9d7blHw5kKHNOwtEyWw7hPfKSVbcZBIIHBwQR5xB+3vWCTy5HDFiQEZOEDcUGLgKO90RbEkmzlY6bAptNwpaNBdxNH5h8tj3Io8CuMmU9UaEG8xKY00NhG1slCD7Rxu2ujP0QBuKhkcHAxqe0X2za2dW8pl3FBVCxZr8Vy0AXYBdpocA0OBafQQmrWuSBwvPFg181XR4s9v1zDl79TnaxCrUGHGZjhdJqyHX0kKc2LhPpUgKOSneTtKckkZHkNTnhjx71jxJ12HQvJ/wCGp5ZXoh3CLI4Qki9poht5orxYoVXDpIYptOV2eYJojXBO4SqBRsAkGyKHIBPYE5qTrsmbRjTGNMY0xjTGNMY0xjTGNMY0xk9QkF0VuOkkKft6qBIT3JYQ3Mx93q24/AE+WoPxLEZ+g9ZgChvM6Zq+CL/8sJMOCCO8Y9DXfIzq4X4MswsJNC3rfLhOOw/us2R24vMaRJct2M/7at/iqTuBwSpOU5xycYCcE8E8cAnPw3roHCagcgiaULVglaZasgbexB3USBakk8YUMpdV7E0oNHt62bJN7SCF44qu+TdHedMprctZwkjucDcc98kA9/PAxjvgjQ9Tp1GtW7auKbhfkJ54HNAHtZF1fe8oMQrC2AN8X+4BBBO09j8p79zebB0hxRaSMkktggqzkgjPHBwAOcjtjBznXRuiwKoUMAQUAHAH9inkAD2sWWqvT1xWksFqNKG4HclSQb5o3XHsOe+W5JJRCuN9XZEMNDABwJUuPFAGCD/T5xycckYJ12L7KIEbrsj1xHptTIzAMSCY2QNV0AGko2R3AF9jTpSZdVAeCVdW4v8AFskYtRalUORdAC7s0QBjHX0pmxY0xjTGNMY0xjTGNMY0xjTGNMZcdqDdWmm+P30CtMYPYl+i1BpIP9pYI+IHGsLqKeZoddGK3P0/XqoIJBPw0hHofVR6HvwCRRwOqC9DP7Dy2I99si9j6EXYPuB27jHqENtetN7j+7dWVoO3cFncnH2E9iQeRu5Hs6+H+pxuh1VpSh2Y/KdtkyDi1ANgADsCRYsnmF0xBQgfkXndu4K7e/N0T7+temStGaC5CXMKxgY5PJ3ckgcYCgSAUjOfLWiMjNqNxsozMQtGhbGrbiiSP5C+RWZyfhUgitvZQK5qq5PA5Hc3fJzP1EQBDCgOfDKSr4YPtA444wMnHA92dbt0YBYAAAtowckmh8rEWLFgAdgRZPPIF2iCbBFnc3FNyLPoDu9j39PbjLcrCQ1b1YcHBkyobB+OJIkYA+yOFH4c9td1+x6I/GdSmIutPsJO4sC0kbckiuQva+QePwmrmk51cQJJZI5WJJHZgF5ALEcmhZuh698xdrvuTmNMY0xjTGNMY0xjTGNMY0xjTGXBaq9tx0cf72czG+31omNj7/Fxql13xyJ+eORPbh0ZTf6Uef0zF1wvR6kf/C9fuBY/5rNTvSK6s256OFh3z1OukPrg0lEswKdATCdqlWq4ZQmBT4y5zsVhtDsGnP1KrVGozY1GodLj1e5a/Np9IpEyfH+S4OgzeKPED9E0bIJJtRJ5ksplWCFCzF5JCis1q7rHFGkck2omePS6aOSaaNDA6NJHRaQlnCqosXYUliWkb5FVfmZmZVCgkkAZ45X7+049K+0LrtpFatTpB0Npd00e2bxsu3upduXdfleuO3rnty6qtFpVMqNl9QKJKmdQpsihP27blo1mybXNz11fhUeetMKe43vnTvsn8E66LVnSa/rfiGTRanV9P6jqOlTaHp2mg1mk1Wlhllki1vT9Qq9PjSYazU6mHXapdNp03SoWkjRpY6DUQCIamRdJ5kcckStFvMiPHJIscaxyPKZ/6flrFLFEZXLBWSiR68eiz6bFx3pdkbpH1qt22LWvapyqnBta4rclXDCo13fJNRuGlzUVCybzp1IvPp1U359sV6n0qBW/lqBOnUeRTl1xiqTqDTqxqnUvAug0XTJerdC1+q1Ohhjik1OnnTTPPohPp9PKpTX6GSbp/UoRHqoZJJtO0DBJg6QyxLLLFTqtJLpWPmqsiliBIgdSFVmQl0dVeK3QLzZDKAaDAnfm7QW7bZTyA9V2XB25S1GmJIJ7nCnU5A4zg+Q1v/2Q6XbpOp6g8kywRK3AG1llcivQ/KD7n3oEZa0J3ayXt/ThN97LNItg8163YFemYs12bJnGmMaYxpjGmMaYxpjGmMaYxpjJWhueDWqQ9nHhVOC5n3bJLSs/djSwCpJob0v14LAH/ccZanXdBMOeYpKq7sIxFVzd1nmz+0/smlXVb/TCn3PUrbpNnfz2Q27gl3c/SafbEZ2Rat2Ipjtbrtbtm76dbEOUtuRQUV522a4GpVcjU56nPQanMKOBeG5pOleJPFsukg1M2vHSdQdNFohNNqm8rX6U6jyoINRo31LRxsup+GXUwFvh2k81WiXInoZjkkhjl2bShJLbasbWB3lXWMEKVLhHKkDjaz5+IL0jI0qmX1RLbvTqvPuus0pli/rcuWEympoYtq+qBbFaolAaLVKotXg1uDFjJkRWEVWXYSocmny7Vfo0GZLqFW+qOgDTz6D4rQdJOhMs0+g1kDzJGrTaPUTwtqVAmkBWTUNOju6Jr2b5NTEZYtqW9f5g1Bjl1QlVAskbqvzKZURyCy0V2p5ZXb/TSi8bAMCfe79nXeF8dRGrKqVdv2bcLV0elP0vvLpvSEHp3JnURTnUSmi5E3Nblu07p/eKpzMCNEdq160lub04oCqfNo0Sz6kboqnyRyfx1o+ndPl6lHo+njTLpvDHVNFrpJvjwZoV0MjaRYdRK+s0Jpnbbo3jj1+reTzzqoU06iSTEssnTJZNTqFk8594EZhoSdnUIuyU25ALhmhjIK7JVckfrrvlwJpdEZSSd8ioOLB75aahJSTjj+nWPPt3761/7LdN5PQJJSAWl1ZUsLFeVF/seZSK5IsC+DeF0xt8uoY1dKCBf5nYd/0YX359cxprpuTONMY0xjTGNMZtF80rqP8AXVk/iVd/TepT7p1PvH3P9x7Xwe3r3zC+Oj/I/wDH64+aV1H+urJ/Eq7+m9PunU+8f+R+mPjo/wAj/wAfrj5pXUf66sn8Srv6b0+6dT7x/wCR+mPjo/yP/H64+aV1H+urJ/Eq7+m9PunU+8f+R+mPjo/yP/H64+aV1H+urJ/Eq7+m9PunU+8f+R+mPjo/yP8Ax+uVGvRP6kMOtvJrVklTS0uACpV7JKCFDGLbHOR8Pt14ekak0N0YFqSbJ4DAniv0yltahVgEckggfh9RXq2aaekr0vonU6mXvYFzNSmqVWHUhioU9xqPVKJVqZOj1S3rioz7rL7Uat25XYFOrlGkrjvtsVKBFdeYfaStp35C8U9R1Xhvxhq9bAB5un1mqCxSqPIngcSxanTahfkLwauF3hnUFCY5GCuGIIgtGJIlWSBiGiPBBUMpu15Pb0IIAPHBB5z8xN5fs4fSs6d9ZnLxtP0fbY69RLok3K31Jvm275sqivdW6LW6hdlXnU28aL1Kq9Iueyajd8SsUiwa1Es65Z9pUqh02VdVSfuy7JFGm2z07Q/ab4S6r0ZdPqfEOs8OPpU0zdP6fqNDrtT9yaiGPSQxy6Gbpccml18Wjkhm1+lfW6aLVyzyLpYho9Ik0WonYdZCJBLNpwZHL/EkPuOovzN4YvukUSKRA0cThET+qfNl2unsX6BfoQSek1UpHUjqHYdo9M5lpSL6T0r6SWdcVZumHZNMvS5a/WG592VmXPk0SpXJQKRcFXty2Kdb7Mql2xAuK7ZbtyXTWLndm0vnniz7QF6wrdJ6Z1HX9VXVDpy9W6zrYNPpZNdLo9LBBImk0wRJ4NNqptOmp1LztG+rMGjT4XSJpAk+Nr9WJUMcEPkQo0hVQz0S08jjepYhgu9toLOyGR7lcsTntVTOi919T6LCqtBnUCJFgyZ0R0VeXUGHlyFerOKU2iFS6ghTXhloBS3G1haVDZgAnun2a9Mkn8LaaZAo36rUvbsRyViT5QBRXag55+YsOKyx0+eOET2GLs6g1VAKpoc1zbNZBIIr2zsfNK6j/XVk/iVd/Tet/wDunU+8f+R+mSXx0f5H/j9cfNK6j/XVk/iVd/Ten3TqfeP/ACP0x8dH+R/4/XHzSuo/11ZP4lXf03p906n3j/yP0x8dH+R/4/XHzSuo/wBdWT+JV39N6fdOp94/8j9MfHR/kf8Aj9cfNK6j/XVk/iVd/Ten3TqfeP8AyP0x8dH+R/4/XN9jVQO6QPtT/qa2TIzOYqzBOCAn7Vgfkk6Yz78rRc4K0A+XtjnjP8I7aYysmpRFHHigfFRSB2z/ABE/3A6YyumSwo4DqMjvk4x9pOBpjKu5JSVAhQAOSkg9hzyD3+/TGeO3W6pyEXzcFPBS2YNZntI9kbwUSlgDPmAOMHgHOAMa+FvtXSR/EvVonYDbqtSFJIHy72cC2BsDcRwOLUEiqGHpdqhhQBZr7XbKWsk89q4vj2zHlGnoWEoUtJJ35zgY5yQduMYyCD59tcfV4wAhYEASbiGoAWwtgDyWo9zd89zmeAX7n8LAggAjtxRHBohrFn9fTMgUyQlLIwvgEHG4jnCiRnvxuxnuecd8CT6QFV1bdR8yzuIojcCTzTcewa+fYVlqYOQw2ksW423t2iiCLPPajQLfm4Az0f6EuR4XTmnOOuIaEuZOkDccZy6Gdx8yVeCB7zgcdzr79+ziMQ+D+kL/AOok0gPFtcrLzQAsBBzbAiqPGWdMPlkax80zHbYJG0BQewNH5qvvXYEUMrrrlPRwHkqI7jcPzG4H/wC9+t5y+SFBJNAf9vTOm5csJP0SAfcrnPbscpxgHzBzx20z0EHkZwFyMk4DeSfLH/vpjKwrRcG5CTjtwEjB4z9L/M/DTGcvlRw8AKB95SggfbgD89MZ8eprySdgDieMDI3H3jGBnn4DTGRy2ik4UlSD9mPzBHbTGdF+EhzJBIJOcg5G7PJIOTzkjg4HfGmMiHoj7YJySkHlQJOB7zg5Az9hPu76ZSRdki/Ydq9+chn36kwSptwlIGfonePfxk7gOeecA/A6Za3OKbepjrlttEGyKI/euwPB5rvkfIvSfSWy+/ICWUpyVKOQMEnsTnOBz5cgaZSGmILBhSgNyBfDcVxXFEm/ah3GeYfXqqNSb5r1TadCm6lKXPaWnKQoyx4xUBz5uEEAc8Aa+JvthhEfizqqAEB5PMBIoHzIwxIAA7m2JvncDXvb024yMoAFO5KqBS2o9bJHJ9as9rGYdotY2OIBWD7QBUnjcd2CRzn6WewJA8k99cAml2OWJSyd1HixvIJHzdttX3oc8ZJbKAI5IPegWIBJ2g2AB81E/seSMy9T6ohSG1pUQCRlAOArsBx3Ps98E+7jg6n+lN88LCwS1gNRWiU9Ab9D6r7kGxVMthSfYEgkEgEC6NVe6q7j9Dm+dgzJX8mqHDbeIabp7SykLPsqfy+RtBIyVOnPbPAHbX6I+C4TB4W6HGQQfu+F7NWfN3SflXgBht4raQbJs5GoU8kWGDktwbtbNA7SdvoDQIu+eRmTo0F+RsK1LKcZ5JKldsdjgBXGcY+AHcbRl5YywFUFo23csb4AX0rn1F165csWmqCQACkDkkk5OeM5V3xjB7njHGRhl9VCChf6k9ya5Ptz7DJlmC23yQFH3qH3HjkfccD89M9ACigKA/7+uSbcVa8BDSle4kZ9/Yn4A9vIaZ7kg3THVYLigge4HJ8/PBx5Hke8cHTGTumM4LSgg+IElOMEqAwAeO57ZzjTGRMpNObBUpXhnHdHATgDuDgc+/nnOfdpjLUnzmkBQYUFkbh+8Txg9wcZyOw5ABxknvpnhPeuSB27c+gv9csKozqgtKkoY9nyKMc4Gc7uCRgc9h2B4ByzDLs3DMK/bn39O47V2Pex2JxjXqZUZqHUlay2oKHhvBW3BHbcEggY7DacnPtHHLLzlZBSt2BBG08g/qarsc0L66WZdFPqbVTi0OpTqQIrIXJp8Z6WiMplrw3kS0xkLXEaTsS5476ER9i8h7KFhHzD9sXgnxB1Dq79X6X02fqGkl08av8ACBJJ45I4hHtaEusjAlflZdxJaqGWoGMbSl7UM26NqtWFFa3Vxbdy4WiPUG81ah1ymeulv1tht5opStkSGctqUTsBSFjIJCkkhRGcjOQdvy9rPDHXknQSdA62oLuAG6Xq1O4MwIWoADd/NtPANtzWSAliArzY+ATzIpO0VzybIHYfsQOxrOlsxq1XvV2KBTKlVlqWhJVTor8plC1bSn1iSylUWMhWQQ5KeZbAJKl7QSncPDfgPxhrtRpRp/D3U1Ej7fN1OjfTRoBsBd31AipQATYZrUXwODjSyIVcJ+MlgAoLbrH4+AR+n/tsCxwM9ALHtm4aZEjGa4+lYjx0+A44A20ptlDZQMK2q2lA5wArBO0g8/f3SNI+g6V03QyEGTSaHS6aQg2DJDAkblSO67lO08WKJAPGWYwgWjyWAteRtIs1fr/+ZmmnyKnHSgKX7Ix9BClpOPtAHByOPMZHJOpHPAxQttJWyODTGuaF1XAPtzl9waqjAEhK1K2gndhChjg+zjJ4HJKviO+mZSuGAIB5HN9wfb9ebHH75d0KpU5W0BCUr9rkkFROewB4PBHY4HfvpnoIYWDYP/b1yeQ40rAQpJ9wHGe54HGfMnH36Z7lTTGQztSUDhGCQceyBg/2lbs48sAA88ng6YyOdlSHM4JTnz3ZPHbkk/3HOmMjXYynlblLX58EggZx25GM+f8AhgDTGdU0tB7q49wJP5j8zpjOHyW2TwT/AMGT+emMqigIkYBYW5nkZSEpxz3JSR/kc6ZSyK1bhdXXJHf9iPbKyLMhOglyBGGT/SAKPbGSAMke/PODwT2DKfKj/L/y31wrp1brqvEehxivjCkx2SRjOOVoURg+4g4yBt1TsT8q+h/CPQ2L455wYlLA16ksOeSf1vijzxlZNlU5j2mI0YnBHLYQrsR9IAA54HYYwDzjXu0VVUOBQ4FDsP0r9M9EaAEAcGr5PNcj1zruWw22dwiYCSVEtqBCcc8ZHl347c8nGvcCNB2H/J+uddVIS3kbVhXHCkkfn8DplZAPBwmmJPJJCvsx/iTzx8PhpjOaaaUnKc58jnP/AI0xkk0p5pISlSiB/EoK/wC3y47D7zzpjJFmoPo4UMjjzzk5z2/2QeQcYJz3yM6YztfJf9f/AJv9PTGfRShnl04+AGf8RpjKwpjAPJWR9uCfvH+WmMrJhRk5/dBWf4vaH3A8ffpjK6WWkZ2toGeT7I/6/Z27aYyp27aYxpjGmMaYxpjPhSknJSkn3kAnTGUVRo6slTLZz/VA+HGMY+7TGddVPjkEhBKsHCd5QknyBISraCeCoJUQOdp7F+3/AF/956KsXYFiyACQPWgSoJrsCwBPBI75pqOtfVmk0StuVvofe1arrRqMyiuW1Zl2w6GmC9ChzaBDqCJbFXrMue0iW0xX5EKJGLNRedp8SlFFGuGdStaHWOpRxS+b0nVTTDzHhMGl1KxCMorwrJuWSV3UMFnZEUCQlEQLHO8P0K32VfZ91DqXTV6Z9p3h3pnTHGk0/Uk6x4j6BqOpNqo9TqNN1PUaN4JNB07T6WVoHm6TFqp5/M0aJq9Tq1bqHSNJ1DMPTXqhSepkChTabbF90tNajVd516r2rWYVJpMmjVSfSpVNnVqZT4kJU5UinveEmL47SiQ0p1D/AO71J6Hqaa5IWTT6uPzVkJMmnlSONopGjaNpWRUL7kattg1V7uM554y+zvW+DNV1TT6vrvhjXfds2gjSPQdd6bqeoa6HqOi0uug1mm6Zp9VqNUulEWrj3vMI3FM4QxgsP//Z</t>
+  </si>
+  <si>
+    <t>Trà sữa bạc hà</t>
+  </si>
+  <si>
+    <t>Trà nhật đậu đỏ</t>
+  </si>
+  <si>
+    <t>Trà sữa dâu tây</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgAAAQQCAwEAAAAAAAAAAAAABAMFBgcAAgEICQr/xABJEAABAgQFAgIGBQYLCQEAAAABAhEDBAUhAAYSMUFRYQdxCBMiMoGxCRVCkaEUFpLB0fAjM1JicoKVorLS8SU1RFVWZYPT1OH/xAAcAQABBQEBAQAAAAAAAAAAAAAAAQIDBQYEBwj/xABCEQEAAgEDAwIEBAIHAwwDAAABAhEDACExBBJBBVETImGBBjJxkaGxBxQjQlLB0VOT4RUXJTNicpKiwtLw8SSC4v/aAAwDAQACEQMRAD8A94MeT63Gs/Z+F+XtdzZyDdg74Xei3/unvvv/APHRpVCgQATfa5BJ37ngXe/W+HhEFm2lBBaXxu7rQXt99Gt8Or40rI9v+KV342229q2++jSsIkLAGx3HkDyxNvx2OJ4WFMOwOPm7ru1/+fXQoCvAW/oaLw/SXZcRfqlC+QXmila81rMGgV5K+962Skq2IG2/f4HBpEZWWA3sDw+LZLx520smACkkxACPeASVAO7XBvtuLDBpr3i0tyEsoUqkvkKX25XldcGWihmCVP8AyVbfpad+z4NR6MgAiEkEEEanBDH3jwcGjSuDRrMGjWYNGswaNQ/4cP8Av2PB2N/jX/6199n/ADNdKJyazBpNch3sWLjobXdnt+Pws4fAVO3mz243vn6ff20aJQkrLO1iSW2bs/X5vtiWDjG2fdK9ntkVtXHGjRqUpSGSAPn8TufjhEcs0H5DzXFns0tp9tGucSQ7ILC7m87JfKe4UPh0aVTC1NdWo20hOo8szKHbjnEq1/A+60H3dtH7FC7obG/nTjN0qdpkcS1Sp9Qp816tMVMvPS8WUjGHEDoieqmIUKJ6taS6FAELF0kjC5IzxTMeWE8WRCRDJCeOfalku2cRpLpSlENxCKGbFMvHmw5QkxlLHlxzIpzfZJCtjeirbodJI0WTdKuUsUks5DkAee+E0shpupCbSEqpG9V4brdU8t26VDEuC+4BtbqAQH+98Gmtm1V7+b8n6V9NbYNN1mDRrMGjWYNGswaNREpYdN9yN3OzA9+p4YsHrrNz2bf1Q/yDXUAyDk/bxrUP8f37t+Ld8LpulkgDa/D9bnby6823YHDpSi1GG5H++u67kgCqYpTcU453NGiIKVatVwADfg8N368sR5YXtSPfJBW4jzLfdpqq54dvbRooAksA5NgBuT0xPBkhOU9lrt7Tle03N+a8aP2KF3Q2N/Ou0mUPDHL8xJycrVcm1epVlSoUKdEaqzEgmDGiwoMVayZOIqGiHB9aXgepiTAhhKlKUtSkw970XoPp+PpsBn6XNn6rJjjPP3ZZ4mOSUe5isckYpDeJZfgvnXn/AFPr/qL1WeODPGOGOWUMRDFhmSjGSE4ylCc0nEJXKt1SMY0an8jlKTyKafWEeEU5U0pqE0YiJeoydUm6P9Xyi6nCrc3Gq8OWXCp8qiVjxjBkTMVCLMwpOWhScdMeIqBD1PQ9D0OTvx9K90CeSpMsxhljxySU5Dkn8+7EhZ3RL255p9f6hne7N1E5RBxSxxTGS2Cd9kYxkfN3SblZULQokUDK9B8R6XN1Kj0qQzBU4kOCuKKtFjRJiJCgpM3LxKfOU+YCDLGLMxIceGJoRUrihE3K6VS6sV8TpfUzL1GPB/WMk4whJy5HuCD39uKUCUI9uSb8UjIZ0CBGLqLppZ+kyOTBl7JAjZF2lVd1WuxUbP8AXUTrHh3NScpMU1WUMm+qnYIhqnIMrPImpGJCXCiqgw46agiNKzkSbREgJjw5WKkSUOIIwXDjaYjMfReoTzx6ePp/pv8AUuyTlzSlkjlSoBAnLP8AExz7yxjimMS5KWalfUOsxMcv9dzZM/e0s3JC2SVLHJ7EtSmPl7WPaJV9d8IVSFNVNyK4pjLh65eHFmIS0LjoCVTMjeVlwVQDETDRHTE0FakLiaUrtLl9DTHMxLLMflPixyDO6cJ2wgLb2k+5O6Lf5jttcH4izufGdZHCdPOYSyxhOE4E9pZElln8sZiom53EXaJGlJmWmJOPGlpmEqDHgLMOLCWGWhQsQbkEfaCk2UkgpKgQTn8mPJiyTxZYSx5McpQnCcWMoyi0iNJSfom5YjrVY8mPNCGTHIlCZ3RnG0kPCfy0jhmnazBo1mDRrMGjUTJAUEvwpV2YD/VQDDswbatHbuDdCPPNH8Py39q/XqpUeb443rWpLuQ7lwQ3S4be5Z928mOHUEYg7oszdARKFDzdu/DQWOkavZv68aUhAqID2JAB35IJb9T7uO5kiEQnKm/yx8SpBXZquQ86T9/vV/wX+enJKQAEpFrsH+POEixiPdHvut+5Aveo/KJdbvmvbRomGhnCbq4/bcEWHcF9nx0xMna90qk8fLF7afps2fto/YoXdDY386tKmePmdckiBC+skTsBMvoCp+XTNTKAkjQIk2hUCfjwWGgJizKvVnQUMAQeLrPxr676Rnccc+PqMMccX4XUY4ZskVJMfnJRyzKibd+xvYGvKfxDkh0nq3UYsOMjhfhyhACJHuxwlLthHtAlJvaoloFjRSvTVrcaYQKllKlT8tKxvXKSmp1uQl5yKlKwlUxKKmZuFMJQqJEXCTMiYRCjlMxBTCmEQ4qc11P9K3qZOJ1fo3R5595Ltjm6vHGVJG5Qcs4SO82uMiNWR7o21J6vOMoxniiw2iLtGmimlS/yi+WzU4pvp4zEELiy/h/TJD1gQla5aozEeIsbAhUaWRpcqHtKTEALAhnefpv6Xp9soZfQIY2ondHrRg12h3E8EZRe5Tcklh4XSx9Zpv4eFk2vzUm5e/m1P0Nja9NtU9KmQzvMLmar4dyKJ1KoS5ach1achx4XqQgMmPJw6dNwBEWkGIIEyjW6tR0nSHf85mTqcjPP6H07OCShKPWZmcA7K7UhjoZb1Ge8t2hdPl6n8QT4YSeO0Ad2Tddi+fb23ANRms+NlVqfq5KRkqfS0w1CHLiXTPTEQCYip1FU1VKhPzC4wKkrMTWkOlJZg2JOk/H/AKt1nWdPg6fD03QxnOERiZeoydkskZTO/qs2ctNztxFINHzXL03Uz6jqOmwSCUZdRhhTFbjOYTLtl5q+1RpEBuvo8aLMxYkeYiLjRoyzEixYiiuJEWoupS1EkqUTcklzjUGWeZllyznkyzlKeSc1lKcpSVkyeVd2lrjbXrUYwhEhjhHHCB2xhEIxiR2oI7AV40MpLXG3y+/fC6XWmDRrMGjWYNGoHCJ1+yWJCtw72Jbjdmdw34Y4D3RQ5qr348munxIsLPN1fhsHjnjfjRzaEgFtV7s5s5HI4467FyDhIHc7cPm1sXukF7hZR7FVxpVsbRasordAd6F7aOdmttnRkBIcn+SLb/afl+ACG2vbbDlFV2uq8+1v7aRq9rfrVH23v9w0chN3+75fv54fj7u4IvYTvwS/KPv/AMOdJp0gwwkA9buQxO7WJcNjpW+6MZVIq2rq9/OzZ+2kk7duypZG3ncFBON0GrrVeZwC01OGX9iJKQyEqcpLRFglm/mkbF97NjAfiYlLrbJEYzwYWKj5nPHJ+WpnCeP2315L+MiR6svjJ0/TS7hpPnlj8P8A2Po7vitVxNQyVKKQjSq+kptsOlw+5bkte74TrMMpsUB7RGuY9rK7aB2Wrl523K1lwL/M8vaMpXcbJbMklVvjbnfZ0pJJirUAQAgEaxxYlma53B3ZyxZsVvZ/ee47XuKC2r3kRtlRuCtXpy0Xv9hX9i3U7pMsqGpawQUlKk7Hc6QbAuQA3Fydmdu3DBsm8DW4PchUr4rn/D524vQVRRRvtVbfo0m97V7Nt7SaQRrqMm4BV69B2AshWo7XsxJLHgWZzfehi+rdAFNZoyRl/dgXK+X8olIsh4dXHo+NyesdBGueoxSJb7fDl3uxvQDJeK521No8DQ6kj2LOH93YckkuS9tvLHsAO4fLSbB8oXaRe2N9xzzS69h/b9Tf+No/avrobDr3Tfb6Nb+zw/bjzo0goMSN2/fvhdGuMGjWYNGoPLpdb8c9ufO4cee+K+Xyx7vew+jvX+v2rzrp3r6O/wCobfzT/wCr0YoAqSCxAct8Dv52+HF3wmIK83Ky7aobqvO5yvtVb24argtu0JWjZs3w6PgixIDalWu9uBfoXD8+TYkkiqXEeYpuVxd+/P0vfTVVV8r+3g+xt9dOUBDqDCyb/Em3PW/SzHfHTjj2x3Ak3fFu7VpztWk/fh4q18G6G79dtO8GHrWlPAuryG/INyQLFw78YeJIsbH/AOvOmySuRqiQJTJv5YvL202hXj66hGeIAXOSq3bVKGG9g+iMtTKJSTpeICQDc73AOMV+JcUpZsGTvjbgjG2IKGSchoRfzVSic7m2vLfxrCvUuklSOTo4xi/Nzjz5pSdmOxcTZu+Sr1V0xKxIcZlaSDtpdwwZmI7dRjA9XhnGgki7V3kYzoXcLlZ3VzXnZ5yNAlBzJt5F3a2eV33PvxouShpBQCDckq3dwHAfkAsHFjfvir0q0xKu1Ls2oW05ratuFL51YNMgethoCAyikO9hZOqz9Qbm7kXx1dNG1LC2N78U73QpYqbePrpwWh/L9/46fqZLFNTlxuQqMdKQVElMGKLnYMpQu9+nTV/hrp+71fpcqDCHx3tXn+wyffaXa3cUsp1ovw1iv1npXwfHm1diYMqN018z9KvbeqmRTZiLFxcWPBHfocent91EY77+y9tUryUpW07/AOya9V+5+9fvdB9N3TVERoWpLuzXZncA7OevXDy63u/rV/ft2/b+ejSCxsej/qwujSeDStXs39eNalaQoIJ9ohwGNxflm4PODSahkruvsB1vvvf8G77gYrpvyV7PPvdtfwu/p9ddStBe1blf9p3v6+3ivrooF1KIJ2azFm2Ni/Ui3PfBEorjmdoiiRAqvNjale2+k5EviKBXmV239zb6fXTlDGkIHRvvdz157t0xOSyX2xaT8saHxbuntvu/TQ1bV143a+tX4v6C+Q406yoDE86m8wB+DOfPHVpkrCxrt3duQFT6X7+NPUqPZWp91AN/RDv8dX4d8FhuoHu8GmNSlGMaDtG29+5Vk8rsHgVuzywvOyWXTVv7wmk8X0+pIH98m17dBfJfidR6W+JuWMeN+0hJ/Tlu91rm2vPvx1iiZfS59q3DqYErAj8NwyIp+Z/NYql2UbsqwnFAxdLgqSE8gFAIcOGJIUFO/VrNjz7qZsyMpWXK4NBFO2m2VbHa72qoVW5hEfzdt1+VOd9nmg/8W/8ADWsBWnSoFwCSeWDkOW6A/txTzj2SY2IcJVO77L4p581403YeXka3oZqeOblfN14o1YFIjshAQQFAEbOQQlj9lrjq9ti9sdXTRqn/ABX9qs1NjPmvatxUur/RHdPCfXbbUkpDqqJHEOWiLP8AWVCR97qL7m4LjGx/CsmfqxBusXS58sSu0GU8cKbuSkciJJsXePCan8KRJ+qkx2h02aQOzawhe18ClX5vk2lqmswYEOBqCj0LszOzsQD5hsektNlLwJxs7NLQ0WtP0516Z+/+T+zv9zbxoGaT7igOqSfxSGf+kbDz4wkaWxgv95ibvt/ear63fitH7u1bqtWvn9XQK/d+P7+WH6U4dvbe+Pt5vQx5AJF2LJJYkkkjzfe4GDS7qKXd+auv5aGmiFCGoFw6h8utxtg0iI06iEKKYRcXB95Ng7AtdiQxL23xXziPiuKvdLBRpT+Kezro222/V99HouLOx4J2cOdyX3AcjuecHkKNsYbRKKlEuwqN1VbXXm9Khv4p2OfBtf0u7+teNOqdx5j54lxo5RPeX8n+ekd13H6lb/tpzltv6x/wjHXpG6aaa2eafetO8qoupHDah2IYHjlxzZtr4a/mjsrbvQgdrdvi2uOeOL1GX8TeuHcKU5B96Fp+m/OornZAMCnxDuiPHSO5XCSW+5BLDo/GMv8AiaCdP0zbbknj7hbgyxqziyZIvZWzsLvxWI/HMT+r+n5WjtzZ4W0b5IQlVu+/wroq6t414gfSC+nNmH0es9ZJ8DPB2PkyW8WvEKFI1aqZozfOyApmQcsVCLUKfTZyDJx4M4ZqrVKSylmGpxanWJOfy7l2XpyI1TpVdq9fy3Rp+o9P9KwdX6b1nqnqeLqcnS9FCbDp+mwZJz6rPiMc5RkwYVjjLP02KOLHlxZ8zmkwnixYsvUYsv6R6WeoScmV7cMJxw/mIyyTl2yQ8kY+ZB+btL5jLxbyZ9If6Rdb8cYHhdXfSwzhM54gVaOlKcpRfChOUanLUlWaJqrVSnZkr6aZkOQMajwpKJT6RWsiJlKiiDJRZSBAl52LVpq56r0LpMfoz6r03oXSw6LJh7+3rMHqL1uGWaHRxw4cvQYcOXrMoZp54dRPF6h34HuMuWeSHw8Wl/5F9IjNwOGM5gQ7o5dmjIrHK5YhOLGC/K94KRq5696vQJ9N7OviVWsq+EXjbUaFXs2Zspa5rIniRRcs1XK0nnCbpuXZfMuY6BUpOJISeW52uU2SVUwurZLUKDKVjL+Ysp1an0mrU6jzmbst1vpfQh1efoYZemOllIz9BLJizZOnxyzzxRzxjGc88cEmEckYdT25p4Oo6fqISnCeaPT0nqvomPoYnU9PKbg7okoNLDviUkgiJ3LFjSxkPdJsNexlHSDNxl8plwj9OIFfD3Pj8MWH4PhfWdXko+XpoY77d/7TL3HzVt/1UtltONjVh+D4sut62bf9n05juhFnlil7XGzE8INUvAycj2EHSA5Vd3KrjjgC4HW+N+yq1eA22KtS7UN/a/H116D+z+oP8HQc0QEJD31uPIAueliR9+A3+aquxKpaaitg8DQ+/wBNH7c80Wm+z7+OeKo502rZr9bef+j4dpSr3a+vOhAQPWE8KGxILuQHNh0FrBr9Saf20wDZ7QtE2DlKXhWqvfQ8c+xD6krJLhVwRyLc8bd8Gmz/ADP2/kahuOB4OLoECjYDxtvztqbR8M6oYtsnSbmzEDruwBGzX4F2tWe+5xum1l+OBfej20uxTu7KgN0fpa7b7ac5dQ073cKa9gwsbM9uCcSD2SJdvDVX7xb339z9/ppP8wfs7mnaXUyiOoBfsCxt8cdujTnDX6tYWzs9nbcEdD1wjfJTQ7eV8A3Rv7j9tRz+WUJBJtqQUnDvXay2PA+L0wZ6Q9IgxBvDnoXD2XBjpL2LB9PnYYz/AOIsZLo4SouOeMltvbFkNjh2a+l3vWsl+Nod3pfTu/y9dj4sQcHUF9xSF0J5U9tfJH9MJ4ZSNX8cM/ws0ZqnKEjPfhr4XTuTEwpfN1RIkY2aJfJWeKnTpejVCRoUsrKkKiU+o5lh1aXqn1pRK/LyCYEpUpmhR43N6H1/UdNH06fTdIdRjwdV6lj6qbk6XH8+Ppp9X0eDJPNCfUS/rEs2Y6f4M8Xws2NyycmGOaMKn8OmDN6bnxTn2ZYdRYAs5Y8nwyUotnb2hIeO6g2W35YYFfpVHzfCzPKzeaZmoZUmKbRpafpdTqsiirRqXJim0+ry+ao07Ar+WVTMpT4s1TqTAp0wqTlJSFT5VctKwliW9oMJmxwwy6Xp8fT58bPL0uQg/LP5s0cmGMJ48tzyDmnfbKc1WbPul1JPtYM59ypDJ22AKxD5rCMSoDTRsFUfTP8ARS5fzDM+K/oq5Xmcwzudayc81vP8lXYmcZqq1OjZHlcvVHNk0a/k7NapyNlOhVGHAmTlydyFFgTtRqOeZoZ3mYX1xK02Y8d/EWTp55vWOpw9PHpMMOkxdNmwnTQx48vVOT+q92Pqel7f6z1EHtjnj1pLHDH0kP6nj7sLlF9UnDH6TmZTlKWSQRJyuQy7JWRk3GLCROPZJa75V+UPsnol4k4eAJdL9/4UqH+H/TFZ+DYHb1+Xe+7Bj422Mk6H3O4U3Pyuybs/BsT/AKSn28y6eEVOKc7Kn6u75LrgLkRU4SGbSCN3dyS/bfG0Gu5SQ2nArG3toiy4tOL8v02+mqMsLiEgukABJZrM53AO5O/ybDgC6vdvld1XYWjd8Vo0LELsBdlF+1iPjc4XTgKk+1V93TbFUQhmI9YokktcAvewe54Zm2vY1JSztXtIUHi+5ut9tleKf10ktZWEhm0vza7bBgBtdtzc3waKWV+AK/Vu/tXbz5vbytf5vV//AJHWP7Mnf/Rji+Flru+Hkr/uSvmuKvn6aXvx7/2mP6HfDf8A82jJbLuYSlYNDrLJZh9VzrOdT7wN7dfuw1x5Fi/CyNPPZkKPI0CkuOf30nfD/aY/95D/AN2joOX8whTmg1kX0n/Zk6XSdiT+T8G9jduHbEkcWZqseQE7hcaCjRV7+/IVW5vpPi4v9ri22/6zGOy7PzW0rzp2hZfzCCD9RVl0/wDbJ245H8Ra1n7vjrDIluLKPt8PI19yGgy4ksy4q9/iQB/S5b6dYeXswqSD9Q1kWB/3ZO8/+DjDuyf+zyf7uf8A7dIzwvOXE03/ANbDnc/xfXUfzlRqzK5bnJicpVSlZaWiyizGmafMwYSCuZTCAVFiwkIGtcVKRqVdRCRcgGl9fxz/AOTck2Eu2M8W7FoZ5I497im/ch3Md6RU1l/xbKGX0fKRnCXw83T5bJRt/tmAR7W9u75mywpEVPL/ANN/0QaR6YHhXMZYlcyx8h+IdFp9dhZFzzLJm1w5KHmCThSmYMsZil5CZkpypZNzVDlKcK1IQZgKhz1Jo1WTAqH1UaXPYDo/WD0nrIZ83TY+r6RyYMmbp0xyyE8MmWLqcDlJRxdVgO8xTYiwnkgSiyJx859N9Ry+n9RKcAnjkRjmxLXfHdNyV90VWJIIu8Wx7j51cq/RlenBkPxRqlEi+h9kXPvhjWKhFgz+Wab4s5EX4LVKHOQ81SMHMAkcx5zy9nifmcnmuqrNEmc60Co12oRqtV5CSkqMqSyvOZc1fWevei+oenY5Y/xV1vS+p4IQcXqj0GWPrEDHPo5z6Zni6SfTYY9edNHH1MOjni6eJiwZJPUEuqh1Osj6/wCnbybiSJSlgceSUBkZSMO38spYu87ZSmkqIsiO8foe+jn9AseiflmDmvxBOTZvxlq2RcuZEnIWQZONLZNynluhS0oqNI06NGkqTGzJmnMs9I06czpnaaotHj1dFGy5R5Wmy0hl9M1VMp6t6xD1OebF00+qn0T1nUdYZOumTzZZ58rQUzen6TBGczpel+OkGebKrkzyjHO+o+pvX5YRhH4XT4+IFDIjzOWzT23Rugu6oHrLlmiVaelZuakKXUZ2CZswlxZSSmZmEmJDgwVGGqJBhLQFhMVCikq1ALSSAFDGr/CGOUug6mUYSlGXVSgyxkn8uHE0yibtT4JbFWCt6/8AB/ZDourlKWODLrJASnAWMccJDckUvI/Q/VdPsbLuZdJSjL1eJO6k0mo+yxBsRLMXDgsbXfpjWGGdx7ceTY7d4ZH5Qdi9jelaVqta4y4kv4uL75ID+zIdAnK+ZwCfzcrxbj6oqD9v+Hw4x5Fox5P93P8A9ulMmK982I+vxIP/AKtBqyrmpWopy1X3Tp0n6mqJLqPtEPLdLGx6uMHw8m78PJtz/Zz8/wD66eZMVRPi4wlunxYl0Pap3Hh2/XQS8qZrWpk5ZzCpIslqJUXuz7SoJJPW+FMeR4x5P93P/TTjPhST8XFsyUMuNIxv5du7uNhk2uzd7Ia/mhmz/pjMX9i1L/5sL8HL/ssn/gl/ppY5cba5cNMmgyQrtHZFkqJ9fF8Ou6UOT4KfMrHm24+Sej9cSqoC7F19L3dZRq9ivpzopCUJZGpDlTGznlgnUCC5dzxt0x04sFjLKIUdu/v5Qb4qhrm/GlqgkmzdHvWzxxX150UiE/8AGe0QXBKW3DMG8r9ecT4Z435cYm5sCqy43/M8eePG2kkinaMTbbuUUbt9/wBGz93TlLw0KIUVOoB9LEaSDY6nAO23ftif9+PpzZu7Xxfk50mn2XQgJCgQpZAJuDp3sLOksWVffC0yGW21XuDvsUbL9hrzoQiybavkG/ALcUjdFG/76rPxykjN+E2ckt7klJTKXAL/AJJV5CaJ7aRBfa4fFJ+JLl6H6hHdiwxTkAXWPPjldbcArT9l21V+sRZen9SCJUHaqO3Njkb3uFbvgHZ415cLT9obAAbC3/5v9wtvjwXrscsrU9mWxOmqqRsXS7W77Xzexggrdq3lCrrjyux9XRUnqK0JSGSAQXLu+rrcXaw+WK2RVRRJF929jdJVLwfppJvCruhQ0yXYBsr32eB8XqyZRKvV6h7uhJ7gAAP5Oe5fFjiAjKI0W1Ek+QLn+ZdmQFG6PjeSF921nyy3Lvc7dk87+WI8Xvrv96OUkuF4bwIwReerlYmNTXV6uLDktRAAsPyUJJIKRYuHSce1/gPB/wBAxysV+L1nVTDa5xiwxCMafl+HuUoitCa23oQw6Eo7Yzy5GW1rvGOypfb8OLylWVber8VBSm5UkkEewpSEqNnO5UkEEi3YkG4xtoYmNMpxCNkJRo7mQqshv5eAaNq3vVs8CqojcgVPIlyN9i96qzXCEIUQYi0sVMEAkk3DAkMAAWU4JBe7HCOKAEYhJYXKaX2hvbFs+c2DZKsvQxOZboje/h248D44u3y6L0IU6SNgxspIIcGzaUlTpGopDhtJxNjxQKkFDEsrd4psk0O6hzZfFacX5b+vGtkQIYLpQHsXLliHYh3I+GJrLSyzk8l8X+ujRCYZJZiongAn5XNr8YXRqghAce2ok+Zb7gQA/mfhikjCMW6F93n2P025qhVaL04kxRjsl788/R240WmUUQGRpFyCWBe9tO4fb3Ru/fD/AD/D7KW19K/XkOXSKrbpZEuSWiakhwAwfU4JLKuAzXsb2sWwkYxL2I7nAblXe3s7V99BdNcbX/lotMNKC6HS+4dwrdn1OQzlmI7vhf8A54Ldi3a3Y4EC9jxqUwyUva7t2a9vO9/w1rEiGGjUw1cAEqS4IBuyTt5X8sAK0Vxf1u+DauN7U9t3Ub3B2vF3W3Jf+uoF4kTEzMeH2cZYxVqQvLVYUUKKSk+okosdLuHcKhpYu77EYrfWfn9I9R7iZ/8AhdTKm2TWGcogF1aR33o5PaLr+mv07rVRkdLlkRiK3GDLdoWu2jx54K15hklLkgEKcJDjfSCSCNy4DDZ+1seBeoRCAEZNMmxVdrDclXbsb3Zv+nmJflvd/a9j7G3150ZIoSFJXqYOAQzskqSdW78Gzcb4qJW1OTfdft/d28f6GmyI2XIN73kjsJ8vzFc70N/e9WHKn+AR2Skf3Un9eLHG0ytOGrvYCMlFaOG6C/1q5sb2y+qUO23D5F8Vsn1vjXoD4LR48r4dZdlklSUoRPx2HsuZyrz80CSCCVFKwApiyUgOQz+//g3FKPoHQwuosc2SUWN95n6nPkirJZUkhLV7aNitb70rGQ9N6ZsZTjllQWl58m1+GiK8fc3bkglalJLEubkuRsSb3uRdvJ8aLNLE41NpbRhdi1K5BFR2+a7P02rXfRa+/P208wdBI9gFdiSWJBuRuXSwDOAxJDl8RYMjjZcdrSqu2zVUSd3wCXvta6NHw4ZWWAJfZtu7ts3w+OJN5ynPAvzUTHZje9l0bo2WvFbLTXtpiCoX2iX5rmRVoguyjaA6cIcqgAFdzyBYc2JFy3Yi73Ix0YsfwxtWUm1tTloL4N/8jYNOODYNqorYNjja65rz5eUoJSl9KUpfdgA/m2JdGqPhyRSAAEoB3+0rln69nVYH4YqE8kaLvjzsbtb8HPHjRoxMvDBDI1Kvu5ff7I9mw/m2Z974Nve/0s/maNE+q21lKQeFX5s49256n5NhLr2+4P8APR+33v8AyT+ekly8ku6FLBuXhuUK6AahpDdu+7Wml8JaFLQuqjAOVBkyvjaqU2q0d3T7e249vs3fN8kXz9X7aZKiYsrDWYEFMdWgkBa9Nri6QDqc2bUHvtzDMYfmErdfAUtnN8VRvvqXFU51klI3ZF912m/N1YDuVttzrrl4nZ0q9MpE9IRKan1dSk56TPqoEVSBCiwVQouqNEXFGrTE9kJRqUdgGJxy9Zjc3S58CEnNgy497IhKE4lCoPfONb7yrkurTH6dj6npOrxQk3Lp88e0Umzlie0l2jJ5A7ZG3KXt0AizsFcOGuBEQuGoqCFIUhSQoNqSLm4OoKTuC+oBQx4F6oPTxY5YMMsGXdDISjKLEreDTz9NeKMJxe3KSjkh8sovdHtkfmixXZG7HhvjTrSZtC1IQtQJCgsn+aFAsw3sbFI/UcZlyJIqPdFkU01EU2k2O90JXGm/l5QiHlVVTdXitw3bvxQasZMxAlpRczMx4MvLwkmJFjx4iIMKFDSlIMSLFiaIcNILupRSObbYtumhKZEhHukrGMY3O5Suq7W13Gjzt76fG1AUWwq13Kore2623313H8H85zc5QKfJycBMSDISkshHrJdemJCUhRhxExYa0DREcq/hGUkKcu9vof0HHl6f0r0/AwY5YdJhjkxJ3VkIPeSGnujJkom0r9tev4fTo9N6b6eZicZ/1XCzjaMMssZkywnFCUZQbjKNWSGKCOu0VKm403DSYsuiBsDpWVH9Eizjgqt3fFs4QlEZB3dvbtzGrlJtCNJtFVdcUwJJFsv2Tbw7+/P01LpeDKpA1FRJLnUGSbNdncNs55+50DpwO9e60RJeFD8thtTy/bfUR3cqb2MQ2psq7W6re/fa0R1hICrQgnZ7FIceZIc389++O6LF2ijXs3V6do1MptrX1cJH3Mo/An2e3fDtGiEwoaC6UgHrckb7EktvdmfnBo1S4lgA6nUQHbZxe7C4AbcqAt8MU+j7x+toP/D7p9L1sYKzZJCAeiWJ8yC++zAb84KT/Xw/o8NXvXGkS/N091NtpfbbY8/WvfY0kqQKiSWUoWIKT33BLPvuHw9h2xhJRJEn80SiLTvbdFK1tdPDpbLSyzx539vf7cedcKlYodkki3QEv2fr3wpGLjlLvCQxO1A5UokocF7e1aNBTFMmpjVoQsuwA0ksABZxq3Ynhj1cu5wzO4JCh3HPalS+aVbhF4EGW/bxenQnGEhlfPJyHC155/00zzORY9ShmHMyKI8IkezMJQEu7gvEbSd2UljxzhzhmhWOAyVEZXvclRiEf/Ld721rrh1hG3GsUoN5UFHtS3ub0leR1Sma/Qt8Ns8zEednqNM0OpTDmPVssV+r5dqUQkEFUaZoUWDEmFEOAZgxCwA1AADHD1PovSdedvW9HgziIOWMJ9p2p5JNK7EXkt9yLqnoett63oOm6ppHI4iPUSoavqccsOZp4vIhz+YHVfyv0cGUJSMY8r4n+KEKHqLScfN1VmwEO+kTkSY/KG2GpWpe5c81svwP+HZVJ9M6UT+7GE4xd73rJG6d+DezfVeem+g3T6JFNkr1D1BjZuX3dV3u9X8+4UdurHoPoU5CoU1LzsxDqGaJyTWmLKzOaK/U8xKloqDqRFlZetxpuWkoyVDUiLJw4MRB9pEQKuO/pPw96d0GQl0fQdLgYm2SOOF91APcjNDtp/LViEq124D07pJmTo/Sel6fJEqOTt+NlhYD25s2TJlJUAyjMk13La6vum+HhpMH1EnJJgoGkkQ1JWtagGClLC1KWxAPtEgCydOwt/6vjjEJSbtbKir+lK0UctfTU0+rcku/KK2qypC64idxz5+vtqYSFMm5Uj1sFYSAwdKgbJ0gvpFxYuGAIdxbDpSQiGOSRtWfyAEULfm9+edvN65pTjOUkTxtw8VtdLx4NtP8KFEKW0ksetgLM6izl3Jdz36csoxnKJijbTYDE283KSbnvVt8rpqhuofqh/PThCgiGyiXX14Bv7ux53O7Ow2x1YcJAjKQfEL4Vq7PenZrjSU91rYIxErcst+ZJDYgm1Cndw8wULSn21E2YJLHS1veckuAOWF9zjo0unKEpJSNIZtxcsTfc4NGhUZMlEgOFO1/ZO/6JtfB/Vbj2/Dh2120y8WtbDVq3Tve/tqInQFcfX/hpVOTpThA/rBv8TeVvnfCS6RSMeyARsiXtS/ZLq+H66Sy17eSuXY2X90NbJydKJLiGh+vPz+/8G3w/wCBOkYjF2pT7+W7+qV404mGxH+P/DdfLyul05TlQCNKRaxYAjyZR/dne+CPT5FGXbFtF2khWyHBv8tDxu+2m907dyvGxf1t8/sV9dKjLMAfZHFn4vt7RHywOHNe3afS7/y03uy/448/4PG+35v0ft9dKJy7ASCQN2tqYnfo4774QxZW2NSjez8sWRaWDxX1r6XoZTp/vG1AA/W1a+vj230p+b0DqP0lf5cLLFm2qJ9akf8Aqr+Gjuy/44/+D/8ArW/1FB6Q/wAf8uHGHJuvbwUd212Wr23xfk581pSU7vuN/wA3y8+1btV55v6aUTRYSQydA8gQ/mzdcIYshyX+jG/2UP4/6aa98hJSPogxr34lf7J99b/VENm9n8f2P+OFMM1p+U/xbNfa97408lOt0X6AH7b/AM9bppUIP7t+z/qGHRwSq5Tp9u0258kt70ndPepHivluve9y/pxX11iqTAV7yUHzQDhXp3xOvr23/wCrQqtutFUiCylJRDK2OkEFAKmsFKSFFIJYEhKiBcJOxT+ry/2v/kP47u3vsvsOjZkMmQWWxLQ4Uj3QjJDglKIv94u9dKEePfjFRaFXl1/wAzrXK/CNSnKJFyvkfOMjQUSEaRk57L8nU4c3ArNanZ6CicgQcwTElKyioNRjxKdJ0nTRsxz9Jyr6p6rixZXL6V1ebMfEli/q/R9QYuxhGeCMyRPLOYSI55QxxDIyjjxscWaWL6Mn/RF/R16j6n6XD0r+lP8ADvpfpUjpOn9Th6z+JvQOp9Vn1WPquo6X1XqOiyYM3p/p3T9Lll0+TL6Ri6vPn7+ihDq+o60l6j6R0nX3d4V+L9G8VKfl6dpuUM/Uf69lKzHjTFXyfW5KiUiaolVqFJmqZPV+dkZKRXPrj06MYKJUR4KiRAVGTMPCxadB10fUMeGePF1kHNHI/wBr0eSGLHLFknjljlnmRgzvHKu2zbtUltrzj8af0bdb+COr9VwdV+IPwv176Zm9Px48XQ/iD0/qfUevwepdD0vXYOs6b0rB1XU9THpTD1mPvl1BimBLJGDjGR//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEEAwEBAAAAAAAAAAAAAAcEBggJAgUKAwH/xAA8EAABBAEDAwEEBwYFBQEAAAABAgMEBQYAESEHEjFBCBNRYRQYIlVxgZUVFjJCkdYJUqGi8AojM4LB0f/EAB0BAQAABwEBAAAAAAAAAAAAAAABAgMEBQYHCAn/xABAEQACAQMDAQQGCAUBCAMAAAABAgMABBEFEiExBhNBUQcUFSJSYTJxgZGTodPUI0KxwdHwFiQzNENicvGCssL/2gAMAwEAAhEDEQA/APQBrm9bxTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKVE/WnrRgvQXArPqDn9g5FqoJ+jw4UNlcu2vLRxp56NT00BoF6ZPkNx33exA7WIzEiU+pDDDi0hjOMgEhiBySdiNIQoAJJ2oxwAeAScAEjJaVpV3rF3HZ2ce52KGSQ8RQRNKkRmmc8JGryIuSRlmVRywrz7Z9/id9a+uWVYRnnQqC1R1GD5v+zYfTWNmApo+bSTGXDv5uS5Fk6MVoslqKqSlNbWVzUdlu5XfK/YTL1zjNotzXr2a9MyMZ4LGCKSF4mlmI79mUl4p0jDNtfd/D3IgIUMu8urJ6d7K+j/ALIafomp2dxZaj2r1DUbW9g1CeLT7cTaXHA8Xqt3pBnmia2nQssk7xzSlX3RzPGsMkT7ffZP9tCn9oR66xbK6ilwLqHUS4DddTxstoL2DmcCbj7F3ImY9+zrKc/Gm00pu+prKkmPPS3041PyGqfn0i3nYGTtbveRbzvB66qb5YoZBIFBLFTlcgAoFIJOSCMhWyg4p227BXPZoDVNOXULzszPMILTUr23FvOZlhR5Emh2xsQH7xe+SFYVZRHubKSSZyavq53TSlNKU0pTSlNKU0pTSlNKU0pTSlWX1C6hYf0rxG4zvPLlqgxahZbftLR6PMloitOPIZS4Y1fGlzHEIU4HJC2o7iIsVD82SWYkaQ+1DPvKvixAHDHAyNzHarEKgJZjjAUEnABIurOzuL+4jtbWMyzSE7EDIpOAWOC7KuSBhV3Au5WNAzuqnyZe2X7XvV7qN1Fwfq1X5TCxePhFxkcm8xldym0wOHisxVpilEtiogvWcqyly6lZubCTMjW7UHI1RS1SwZa/oL9KPVIJWfS4pGR5YZQ8oIB76QypGY2RFRyI+7wN7sjMdjIwYDusfYO57O6THq+xnWC7hmCksvfW6m3a5luUZlliWJncAmGON44grmWPbM+FXVW8xqHPy3O8d6vJschgX9FjlTfY5U/ue9hj0y1x9hEKPQT77I6W2jw8nmy5U6FLqY9o1UYnAtolnUJu7mHTYBZDqFylsLOd7BC8s01xbpbn/dxE6bFiLvGUjVgCJXkkd0aQoy4PW7hW7MaeuoDVtOttX1G2SDTrOxvX1ONH1N5rWVrsXBghlM1zJbSAGHuk2SGMuN2OpxfrjifQfLKWLjORZ1k1zjGNdFsm6f2H06HZMYNlEWbZRlPW1hT0Hv6iW5jFgH4aTCenpiW1vCYtIkJU2ofmCXTt7Qis1tmljuYrhgy5fuljuIZEikj5Qbdj923Dhi7YKqMZdw6ZNG/ZXUdYOqWNt6rPaQMkoK+vz3Gm3cEt1bBdrPt72Nrx4cqUaGBjF3y+yD2HPa0xz2t+j7mTRXRFzvBL2b096pUL66xqdXZjQhMeXZproEyS5EpMi7HLGkdlMQFvtiUwIUZyG8w1noTIY0MgJJVT3mwoshKglkBAyuCOfPjA6V5b7U6RHo+sXUFtsFnJNcSWkSzGeS2iW5miFpcuQCLm37sCRSWJRopC7CQGszNVa1ymlKaUppSmlKaUppSmlKaUppSsd/bE9i7EvbDxHH8eiZXHiLxeBPfFH+1Ltg3VtcVj8CQ9fRK29gWVWyw1NXDM3H6+ZMeqHJdahSmbWYXL7UYbD1WJrFnnkS3EkogkSaYvLEEY3GnhxcSor5Kx2quzYMSlBJM1T9nO2tz2bvrq21GxSSC5ng3yxd3DcRwQzLJGbS5ML+9Iqk5klWPJV2RmiTbqcz7/AKfPr11PdtUx6jouI0uFc2sevpMktJWNMtJntGHjcW/t2KLqJS3cpmDWLiPwemMuIwg2RsL5+VIajsaDNqttpUMlzcyalFfW6MYu80u5jDyLdTtlY7pYXOe8WRTFGpNuncspYRoOrJ6XdEuJEtruxu7vRJIktri2Mi22oNG9taQMVjjmuLeWIRW0sTifUxK8tx6ykMbAloEs/wDp7fajuOnmMQbjp1msnJ82yDI5uXS8qucOs7PBolMxNhw1mzxxuzjiFkNcI8vHPo7NpdtWbs1FtJqXX25DmITtzaNevcGfuzamO1hAgvgl2zsWmke3kQKzBSAMFY4QrLkjBGave2/YGLTLnSoJLzVoLic3s8xtI4Lm2VoraK1sNIupYbWdFtpDM91PciJ5DsmR5WBEeLXR3/B09pKzy2zjYPQ2sjHXMbn1tflGVRMpwzGraLAsJ9Kv303P4EC4bs6Mft6CurnJpXEj6FdVNTCVPqyzsmoavI8VoBp94/q5S4Igt5pUYTsFmhRbcOe8dVEh2uwAkG5kIcC70/WtF7Pabrur6nrVtaSapHFpMmjrc219r8MsNu13pOpTGKaW2nsdskcZlg71YiSpLkSiHcZ7IX+GvmHs2dV8R6i5N1VVjNpiDWP1uQ4vjsqLddPeqNQqmyLE4dJOmJVjVgze1UKS3bM2bcS4aeusmdSa+W9SVktqTR7zVJ47aF7IWcK3L721OdrZ/VyHKpDCIpZ5JERnIUO4UhSVVcpXPu3vbvQdVMr6DayX0mrWkUMkd3C1vc6be2psJPXEMc81tKLtkltnwID3MG5mAm43Ar7e9XZ3dncrs7tu7t3Pb3bADu2232AG++w1s5xltudu5tu7GduTtzgAdMeA+YzWgKWKqXADlRuC52hscgZJOAc45rjqFTU0pTSlNKU0pTSlNKU0pTSlYoe0jXT5TUZ3HZYq8uhQlWuL2Ls2xhVyLtpEyHHbuU1jrT82scS6lMiG4l5klDL3uvfMsqTzbtjrFtpmqWiXozaT2gS4Zcd7HE00gMkRPSSMjKMCCNzDI90jE3caeuxtKC0LwoswUKX7rvXD92W4WQA+62P5iOmagmq60+0NSWFtFreoS4uQ2+ByJuK9PptjPTUV+R0c5dc/ZN5VE725dRbNyYEybXyIKrGv960llQQpxGuczdobe2QSW+r6sNOt9RCy3sWoXCM1rMizLAbOSZtk0TAIssad2wDHGcGq8cemPDBG9vIhjvSlzfxBT31tIgdV9VZgEni2thwwR8sW3NtFSd0x6ze2VKm4fIz7qj2w42DSmcyoqKdIci2eZv2sdLEyospLv0iPAi1UeStEN1nZ5yc2HH0e57Tban6QdOQTR2Gs6g80t/GLaSa4YtDbLEN5kRlHDTM4BPOAT05aM8WkiG4jtIJhJ62zWs8jKCtmI5AI5Y0O3vWkKMXVuFXG33mA66kk9Z8zEzIMvez3DU5HmTtRZYhS9TpIWcSZLsWJk8iSzYtRqYh5TlrLhY+Ez7JLkRmalZQ401mLn0qxwqtj7duL1YLRSt48kylpnJJRRHhnIBCK0hwoJG7Aar4+oWcipbS2t4YbRJorqexVk9b2h3t1iaMtKhUCFZLkusJBaMAgGr36Uv55Y5Wu16m1NdUX9jMnRKmqpr6ReQouPU8uQ7US7OS/smRkEtD8l+c7FSY7Mf6G04UPlTSdg7Ka3Yape2q2V09yzSmR55wBLI7WrySqoJLCNe7OFOSzCTICjItZ4rJLmzisZWmhRUeSWWFYpDcNEWmWMKFPcoVwu73iwYgbSN2WOuwVdU0pTSlNKU0pTSlNKU0pTSlNKVjd19QW1UMkDfuamteoBLamlgHbzy5uB532+Ox4N6ZAyS6ZKCQJLa5iIGQCY3jcjOPKYE8+XTxxd+D30LZ4MTj6wHHHy5bP2Y6Vi0JDhdCEKBQlJKiSQUpV2hSQTyAeO4DYHnfkDbzLfTv/ABMlzkgBd3usFL4JGce74ZBJwemaoIDjPgQCPq5q5qmwdjOJKHFpS2NuFK7SCNwPIPGxB2HHp8RqdxM7SFskNnwY4wRkcE8Yzj55zxjFTgAAAdAMD6hUjVd5IdUgKU4o7DwoHgr2HPnYnbjY+hO/jVW3mJ4bJwVG7gn3ifA4zjjqaVKWASUz8o8JV9CgynQduUrcLbB244+y4U8Ebg87nYa9I+gm3kk1e6llZiLezleNTuwGdkhLYIwGCuVz1wxHUmoQkteQYY4CuxHOD7ki/Zgny68/Op416prM00pTSlNKU0pTSlNKU0pTSlNKVj/7QrXbjVVNA+1Hsls93wTJjqJHw8sjjcf032416ZbZX0nTroL70NxOhYDJKyRKcEgE4Gwkcgdc5OMYzUPp2xxn3pFJz0B7vP15wB585rCeRcR69L8iQ62zHZbU9IffdS000yhvvW684spQ22hIKlOLWEJSConjXk27hlZsKjyPI2xQiMSS7sEAAGSS2AOBksB5ZtF5Ck/RUL9+AQfPng/kfGogje1p0CTKXEZ6kUtqtDrkd6VjrNpk1W09HkV0OS27b49X2VU0uNLuaiLJSuYCxLtK+O4lD0yO2uq3o/7XyZl9iXcQcCQJdd3Zy7GWR1YQ3UkUpBWGZwQnKQyuPdjcrcxpJKN0MUsqg/TjikdMhkTG9VKkh5IlIzkGWIH/AIse7Jvpt1Bw7qDVrtcJyaiyqsbeVHfnUNpEs2IspsbOw5ZhuumHNZUCh+FJDUhhwKQ602pJAwsuj6ppVybbU7C7sJyiOsV1BJCzxsSFlTeAHjPO11JRskqxxUnn14JBBBBBBIIIOCCCCCCMgjBrJLoy0pd3eSFb7Nwksjfc/wDkkoV/N8muCnjzv6HXpn0ERHvtUmbORaxIM9PecHA6j/psSRgc4OTjCzy12OOEt3bOfEyIo4+pj5/0rIrXpOsxTSlNKU0pTSlNKU0pTSlNKU0pUM9doJm4I8oeYs+K9+SkPMk+R4Lg/Lf031zX0p23rHZrcBnubuNjld3utHKpPQ9MjpyfAHwxeqcJA/XbLjH1qW//ABjp4/f56PbilWdnGZwp9iwkYXEof326gQaxGQOO2dO3NciJFimioLN6TV1GPYxld4Ik6fHgPZKzQyrKtyCuhzat/l/o7t7OI3GqOYBqT3I0zSXuPVhFDdvGrrsF1dW4WSW9urO3aSNJJRaPcxQSW00kUqz2NoLgTyuhkitlDyqolZhEP4k0pWOCXIjgSUrudFEvdl1kjDodZdx7UOMJ6oYxkPTTE7GswPKZblnc12RRUZRkxhKsmKG/Yx/IMzx60kV18punct482gv7WrjTLOFDUYthFsGmevWnYa99kT2ms3kc2pWyslneWgl0+xmZUeaFprSyuYILm0jknFu8Fzawu5t5GKFJUdshJ2gga9EtjCY7eXMk8UjLcToGcRyqstzA7xXDpH3qSxyOg7yNcgq6ruc6AdWsMyW0ts8wpcmBb41n8egzt2bjmS1MmziXNhdvyoeU5RkZoqSyurCo2hVuJtU8DITeYxCyJDciykKpJ/H9e7N3FjCuj6xGH7zS2k0+Itat6pcWcMEDLa2FrHPcw29vcR75bp5mtkhuprORoYoxPHlr6S21iwvLmAZMUkkvfFG3Mz97LEWuJGSJ3mhVUEKoskhUTk7nELbr+kdaqI3dSFjYuux2wedyAXleD8u0kem/pvtrZ/QpZiGx1GfIJd4Ez1P0GYj6A+XORwuMHdxqenjdcTkfyRxqfluLHH5KfHy45qZtd1rL00pTSlNKU0pTSlNKU0pTSlNKVYfUyKJeE3aCCShph1O23BRKZG5334AUdaV6QIw/Zi/JGe7VJB04IdU+v+fwP1g9RjtT/wCWB8BNHk+QO5On/ky9OePLJrRd7WGPzqqXWZbFg48qryTEco6VW+SX8O4sf3Cubst2XT/JK6DVR7JHvp+Rx5OICRIqJ7jdxkuO7Jcrv2pVXHnvsZdxSvdaU8t2J4NSsdctbO0mt7carFaGSDVLGeWdo8Klm6X52zxD1axujkSrDLDednrsW88tvM0CNfW88Ecs6PIYJmX+C8KIHBkZwsalY2fdIhGVDxy6SW+gXWzqZ1ezlGB0+HdOWs0t12fSHptJq1tyLSJkb9dNo3MKrXa3JJHTetyHHJ93lMTLJdhjlDLON5OWLoRMespdP6BPafQ9I0LTPaV7qerrpMT2+tastyXjsntRMl8L51ktItRltL2C3s5rCG3urtWu7ASW7SX0Xf3PsW/u9SvHt7e1sPXmD2Vk0fvzrN3ZgeBCkzWsUluZJlumeKJlhmEbmOPK7h/YjwXMaeg6cdOr3EpuKdQcqtbqy6oWtbfwvesUXS7M7HE83pcng0thlNPJVdT66upbOfkELHspvr3I5cimvJlPRyG2uQdv9YsZbjVdXivxfWcUNtDpMU9vMTNd63axXtjdW891BZXA9XjkluY0tJrmztba3VJoEuroE30ztpOherSwmC9uxPDIEmjBU28slpPE8UUkyEYVN0ksUMkjlxG7RRgV6CMIipj1slQGxcmuc/EJbbIPp/mIPHprefQ3Djs5NMw957oDPzWIZ6AA53+bY8MdK1jTQN10wH0nQH613j8z73248KvTXXqytNKU0pTSlNKVlF9UrqP99YT+pXv9t6ynse7+O1/Em/bVZevRfBL90f6lPqldR/vrCf1K9/tvT2Pd/Ha/iTftqevRfBL90f6lPqldR/vrCf1K9/tvT2Pd/Ha/iTftqevRfBL90f6lPqldR/vrCf1K9/tvT2Pd/Ha/iTftqevRfBL90f6lPqldR/vrCf1K9/tvT2Pd/Ha/iTftqevRfBL90f6lRx1e9m7N8Q6aZhkdpZYvLr6uq99JYrZts9NWlcqOwgstyqSIwoIddbcd75DezKHFJ71hKFar220i5XsvrEjNAyx2u5lRpGYgSx5wHgVfmSSABk+FWl9dRS2zoFkU7o2BYLgFZEPOHJwQCOh5IPQHOmLJ4FVcQrOhu6yHc09tCk11rVWURmbXWNfMaWxKhTYkpt6NLjSWXFsvx3m1tOtqUlYKVbK8D6hcz2l4lxazT29zbSpLDcQs0UkEqOXSSKZGDJIjKrLIhDI4G0g81bRZZV3HkgnPHTkjpx0xWD7nsG9LJF6bLGOpfXHp/BCFtMUGL5jTy4FWo2WK2jEulm5hi2UZBW2FW9hWOxqCc3dKfxqsr26zGjUw0MtM7VH6au00MJtrzSOy2ryKyl7y+0y4jupiIb23kW4j06/srOaO4TULt7qOS1CXkkxkuhcSAscjHeXkWO7u7hNoIXD5KZaFg6Mys6yJ3EYhkVg8KrtjKpla2IdF8IwbpVXS6zD6qU2/dTVWGQX9tNftshvJrsqVMWudPk9xZhMS7Ce9W0VY1Ax2jE2THoamsivKj60281vW+0t/BdapMsgt1EVrbW8fc2dqgEabYIEG0u0ccay3ErS3U+xGuJ5nUGqFxPLMzvK7SPJ3jFmP8zlnOB9FQXYnaoVRngAVtb6L9C8s6k4U3kNDPx6HCRZzIC0XEqyjyVyGW4ry1ttw6ie2WPdSGUpUp5LnvUupLYCUqX7a9EWk3D9jreRO6TddTqwlaRCSoj6bYXJGCOpBB6DHWnZXCQicMrkmYn3QuMbVx1cHrnw8PHNSz9UrqP8AfWE/qV7/AG3rqHse7+O1/Em/bVfevRfBL90f6lPqldR/vrCf1K9/tvT2Pd/Ha/iTftqevRfBL90f6lPqldR/vrCf1K9/tvT2Pd/Ha/iTftqevRfBL90f6lPqldR/vrCf1K9/tvT2Pd/Ha/iTftqevRfBL90f6lPqldR/vrCf1K9/tvT2Pd/Ha/iTftqevRfBL90f6lZ0fvGwk7KSfA9CPjz55J/pxwNbJWLJCgknAH/rwr7JyOAR9pwJPzPb+I587f8ANtKhvXz/ACP+KDJqru7TJbBB2IK0jb+v/B67DbSm9fP8j/iqpu7rXP4ZTW/w70//AEg/6DSohgTgH8jVeiVHd29282vfx2qB0qNRV16hCx6LdTo2wWDhl4+B5HdDhuTEn137VMBX5awXaiLvuzutx4zu0y8IHX3kgd18D0ZQehHnxVOYAxsD8v8A7CvLtauJ9+8Dvw6ru2G4ACikHcDcE7Hx+fjXzX1iMNPKBxguT48ru56+GMfPOecVVQFdgHOFHy/lrnW1yH5DagpI3CNt/U7jcHYnzzuN+TxzsTrRpARM5GQAfdPI5Jbdg+PGM/8AuqwzgZ64Gfrxz0461NmPU0ZoodccQe0gdmxJ9fQ8bknjkHt38jkZvRbphPESgcNIAc8KDlD03N5EcADPJ8KlccZ8gePM+A+VbzfZMfg1XRCgclSWGDNsbmXstSUFSUzVQkr2J9UwxyTzsdt9fSH0WR7exOkOQqmcTSnaCAR3piB5HlHjgkZBIPOBYwuBvDHGZGIGPDPPQfLxqfn80x9gkfTmlkeiFA8+n+v/AM+OuhVWMiDqfyP+K6pzqJSpOyXAvx4I/Pnu+HIPz+R0qUzIOhz9hH9q+A6hQHFhLaFq7uAAnceg435J3+Px5+Sod8v+s/4qvTlyVglLKxwOSEjb5nf/AFHO2/jSnfjI4+s5PH5Vy/eN9w7pbIB2O/dsAN9vTjx+Z+BPlVUHIB864yaWQ2Cfd96QdwUfbHJ+A5BHIPHn49wGlRronq7c7bFOxI8bbbbkefB+fqOfQaVTaJSc4x59Tn86tefQlzdbalNrPBIJ2/MeQNvUbn58HZVBomXpyPPgflmrNlwbSGSUre7RvstKiof13CRyduQDvwBxpUi4yNwyOcjkeHy561b715kVfupmU4Qkk/xqH4cAjb57jbf8DpVyAmCY13HjjJGecdT9tWVl/WOzYxy+oLeUkx7umtKhYeIUSmyhPQjyeQo++2B3PO34iz1GH1jT76ADJls7qMDGeXgdemDnr4Any5qh3jbGX/tbnjyJ8q0J2zyROmIHJbfcQQDtyHVjY+ngHkE+TuRsTr5la2hF7cqRjZJOuCD03sCCMg+6OM597GRjIq8izhMHB2j58bRz/UfZmqiom9jgBIRzwSe74Dnf58AHkAnf01pd3FiQuMsoAy2CACoIORnyJHz8M1cVLNPZ7FCy5skqR/F28kntJB3J259N9tvPPNzp7HdGMZ2ygDnHDHk9PDJPz6VBgSpA8QePP5fb0z4Vs16ZWVqcaoamNL7IbFawsJQ5sEGUn6WsH7W321yFKO3JJPrvv9PewMHq/Y3s9HjG7Topj8zOWmz0A5EgPzznnOTihljjPi2PkCS2PnyTU8VlTLfCSpx108cJ3UDuDydgRxvxvudwdt+Drb6uN4iAT6RHXqOpz5EdD51ftfjLy+33u6BwSDuonkbcEkeu25UB4GwBG6qDuXPPh0HHGcZ6AeVXtAoWI6QAj7XA7jsVevxGw/pvx/NpVVYDgFjg85XGfzB+2rnjVDq+33TC1D4hPA44JUeBv8CR89hzpVYIq9BjHzP9zXesULh7S6pDYGx227lbefAO2/gcq+P5Kmq69KVTvtxVg+/Q0oDyVAdw3+f8Q8/H56Uqz7V6hiBRVILKwkntStKud/8AKQduAeAR8gPJVKXUEgnGMZ4PGenhUSXuRISFivDck7cd6S2SefJAUPgAO4AeR5O6rZiZGIAyT9HnGMDnrjrjx+yoMyaxyCaHEogvNAg7LjgDjk7/AGAru2B4CkjbkbjkhVQRsfdJwg6Dg5zyeQcjB55rGDOMTyO0SpfvnXVpcQpLbwWlQ2UF8FIIVyP5kJ2PPHOoMNwIOORjkZH2g8EfI8HoaotGykAjrnHTnHXx4rWJ1GwLqXiGQW707CcksaN+TIfjXGO1cvIIwZW6XG0yYlO3KtojyW1H3xkVqIba0K7ZbiFNuL8W9tfQt2ugv7u60u0j1ewkmaSN7SaNLoRszlBNazmIllXgm3klywJx1xNFMERVdWG0YL4BXwwfdyRnlcEeIOT4RhX5MkykRP2bkaXlKWC2rFsmS5xsSUoNSFqIJAV2j+LffdQIHHb30ddvUlki/wBj9ectke7YzMoJYrgsqlfDIOeeOlXizxY+kAFwMe8TjAxnjI8ufLNZFYdi2dZO5ETQ4hkcptTrQek2NTOpITAWNkuuP28eI88ydgXDXR7B9sJJLCiptLm09mPQd6Q9Te3eXR/ZEBdGmuNUmjhCpuAdu4jeS4LAHbsEaHdwSCDUr3EW0gEsSDjC4wcEgndt8cDjPzwK2OYLhmXV4Qt5p1B7GuxDq1NMNBDSGwhpnu3DaQgABQUoepUTr33pFj7L0vTtO3B/UbK2tC6rtVzbwpEXC5O0OVLAZyM881ZKrHaCAxIPQ4BIHOCccDzIGcdOcVkvj87JYCW0PPpDafKUI9567cJPZz6n0/0GsjVZYTgHO1uc8Z+rxx0qZaTKojYQLBl1wjySexO+w/ygK+JH2vzO+lQUmEkMOG6HPl8hnzqV6i/x+QEhhLLa9wPtbFXI+Ktydtthz529RvpVZZFboefLn5+OB5VeDTzLiQW1pI9NiPXxttxz52HPPOx0qevtpSrOlX7p7gwk7cjf0G/pt4I58nk/HSlW9JmWEruHvVISTtsODzwd/lx8dgR59NKpnvD0G35e6cf5zVvyKUSldzxWonc79x/HkA8+fXfkbAegVSMLE5J/p/mqFeLRjyEqH9D8j/KCefG49NuBpUDC3hz8uB/evgnFI6zsEOqO527ODzwNglPn57HfYcfFUhVkIJGM5xyD9fTPnVc306YlDZyqceB8mR9hP+8pB3338H4aVU2SkEHgHr9Hw5HjnrXZM9IaNYIfqaltKv4gpgSFHnkEHZO+xO32j8zpRYWycnbjocA5z14zxiq5HRjCgATASF+dmm2kNAj4NlCzt/7DcbeNKmMAPRsfZn+9cT0opYwIhQa0J+Bihlz18uo7io+OeOT6AaUaEkkhvsx9nXNdVI6cttEqFarYc9zDpcA2G+4T3KO3/r+Q5GlQKzAYByP/AIj511TmIMMq7VNSGyN9g4CDt4A2UkcA+fU+CfTSqRDltpHveXHlnr06fOuSMVjH+VW2x9Ejn5Dbn5bc7/hpUwhc9Rj7Qf71Vs480we5vvChzv3EbeePTc+m3P57aVHuW/1j/Nd/GdnxNg28vYbbJUSpO3jb8x45/rpVQCVR5+Q90fnVwRb2Sjh1JUBsSd/lySN+fTbfz8NKqgkjJGD5Zzj7RXa/u+OP+6kbH0QefxJPH5baVGvsmhYH8Tqj532SB5J8blXx+H476Ur7opYSf4gtf4q2H+0A/wBCPw9SpVSmsgI8RmlEeqx3n/cT4/5zpSqtDTbYAbbQgDwEpCfTb0Hw430pXPSlNKU0pTSlNKV+KSlQ2UlKh8FAEc+eDpSqRdfCWSVRWSSdyQgJP9U7H/8APTSlUq6aEUnsbUFbHtHvCAVegJKV9oJ4JCSQOQD40+r/AF/WojGRnIGRkgAkDxwCVBOOgLAE8EjrWGg6xdVqijvF3fQ/Nru9bVYzKVzHMLyyJSJgvwoc2ghWCJLFrcy5zSJbTF+/CiRizYvO10SrKKbIZ1VrQ1jUo4pe90m6mmHePCYLW5WIRlFeFZNyySu6hgs7IigSEoiBY53h9Ct6KvR9qGpaaumek7s7pmmOLS31JNY7R6Bcak11Hc3FtqdxZvBJYadb2srQPNpMV1PP3lmiXdzdq2oaRaahLnTbqJU9TIFDOrcaziqTcxbd1123xG6h1FVJpbSfVSq2feTIcOEqct+ve90iJ75lR7Wi6l//ALWsnY6ml8kLJb3cferISZLeVI42ikaNo2lZFQvuRsbcg4xndxXPO2Xo7vexl1qlvd672YvvZs1hGkdhrum3OoX0Oo2VrfQXltplvdXF0tqIruPe8wjcYZwhjBYf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEEAwEBAAAAAAAAAAAAAAUDBAcJAgYIAQr/xABBEAABAwMCBAEHCgMHBQAAAAABAgMEAAURBiEHEjFBUQgTImFxkaEJFBUYVYGVsdbwIzLBFkJyktHh8SRDUmKi/8QAHQEBAAICAwEBAAAAAAAAAAAAAAYHAwUBAggECf/EADsRAAIBAwMCAwUIAQMCBwAAAAECAwAEEQUSIQYxE0FRBxQiktMVI1NhcYGh0TJSkbEz8CQlNEJDo8H/2gAMAwEAAhEDEQA/AP0AVW9TilKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKUpSlKVK26x3a7BarfAfktoUErdSEoYSsjIbL7qm2fOEZIb5+cpBUE4BIyxQTTZ8KN3CnBIU7QSMgbjhc45wDmsiRPIcIu44J7gDggHkkDOSMLnJyMA5FSr2h9XMGP5zT1zCJZWmM+mOXIrxb5SsImNlcUlIUkqy8MBST0UnOf7PvQUHus33hAQhCUbOcEOPgwcf5Fgv51gMiAupdN0YzIu4bkz/rXO5f0IBzx3qGudpudlkmHdoEq3yglK/MymVtKUhYCkrRzABxCgdloKk5yM5BAw3FtPayGK4hkhkAztkUqSDkZGeCMgjIJGQRnIIpHJHKu6J0kXJG5GDDIJBGQSOCCKjqw13pSlKUpSlKUpSlKUpSlKUpSlKUrI+g9G2zVDVzkTbjILtvCC3YrX82F5ntqSeZ+OZeWvNNuFtk8jMhXnHAXfMICFObKxs4biK4mlklZoAClnaqjXdxxnKCRlULuwmVDnLZYoF+IivLc29srwW6zsA97d+KLS2XdtJmaJSw4yxJwAAAu5mC12+7XXSHKqPqo3DQGndPeZYhvXpmXaYJnrUI0RyO8ykrkSlLba84l2JLkPyZK3kNuIkONjTTavYXSy299Ff6OmnkeFHeRXFrFcM2VEkBU5cpsjLrNE7Fn8Rdwl2Lcml9Ma3pKWh6el0bqeXVonEi6XNaaldwW6L40sV1FJjwY5A7OHhmiRBDskaKWCKV7y/X/AERqjS0K7WTUt5cgxVs2hm3WGZKiah+leR95dwVFjmLdFTJrTr0pMl5XKlqNIcbDK2HAj6bjXNNu7VZ7a/uDBbKIRFbSOLhZtzO07ogWXe+4t4kiogRPh2HJPNn0p1FpOrS2GoaLYLdXe+9a61KCJtLe1RUHukc9wJLMW8DokXgxEsxdA++MoW7LJvOnoaJd81Zqa2Sn7BDgswmtQTAzNfVKd8wmNbosgpEt91wsSLmmBGW8uKpEuQ5yoQFblNfsIVa81G+imNoi+F7zI/jPJgIiCM7fHRmKNOsMZkZQrO2VAMQuOitUvrm207Q9BuYffpLgzPp1pDLBDF/1biQ3CbhbNHEpW1e4mSMTZhhCeIWqLu2l9Ia7jxbtZ5TFnaQw8uXc2IqBEKkrUCmSlRgsLQ1yqUiQlbbpYSFFKwtGPvYaVr/hz2jG1GxmluUtmSLcM7llLLDGzAZdGJSRolBbI7Q3UdH1bpszW2pRp7xE6hLWS5Rp5Iim7fHHHJNJuJUrIvxKJGYbgQcec5TKY0qTHQ+1JQw+8yiSwSWZCWnFIS+yVBKi06EhxsqSCUKGQDtUXdQjugZXCO6h0yUcKxUOuQDtYDcuQDgjIFYlO5VYgqSoJVsblJAJVgCQGU8EZ4INUK61zSlKUpSlKUpSlKUpSlKUpUna5r1veekR3FNuiMoJWlXKU/xWV5CtuU5QMb5yO4IrW6tI8VnJJE0iSJtZWjYq4O5RkEeQJBOeOMHvmrF9nNpBc9R2lrdRxyRXUFxG6SAMrr4filSp3ZBCEHAzgZ7ZxQm8SdSunEq5yUMMnb5nJmRHFpTnIK2pCQCsAZKAgYJGCBioa/UWtpgm9kIQBAF8RGYrnIYBu7YILKBkck9q9O2vs76VGTb6XCzykszTxwTxRggDMavCxAUk7Q5Z+D8W482DPFW+IKvMcqnVKSW3JLzr5ZIBSC0AoALKSeZasqOSUlvetdcdQ69KOblI2fd9596zAAkj4XLZOW+Ikc8bdozndw+zzpWIANA5VcsY4lji3Y2lixXBAzyEA54JLHNd6t/FHUUpLRM2Syrkw/5h51lt30cBWGVNqChkHGTsnYjOK623UWuW6RqNQlyrAfCxUNkjhlGAche/PkCccHU3ns66Xcyq+lW8iPt2NLGjyIoOMAspQ8gndjIZskZ7VLprC93CK+w/PfdadaW2sFROW3GyjkUpZU4QebrzEkHClEZB3Wm6/rmoX1tbXF7cSQNPukiJO3Yo+JDk7hGNvKklSPIgZqD9Y9F9KaH0zreo2ml28V3Hp8scM3Z1lmZYldVGE8TMvw7UUggYIOCOiVPa8oUpSlKUpSlKUpSlKUpSlKUpXIxkZ7ef/YqokcxWg5wtt0bf4VKGOu3MAT2xncda1+ojME2RlTC2RxyVy3mDjBwe1WD0JI0XU2kspAJmdMnOCHjkTHw/Fzu4x544OMVjS/KUj+GFj0diAdzv4dd9/wB5NVpdcSOc5ZWIz27keXbse/ft6CvbulAGP/EHKgEnBxgL5n88fCO2QcdjXXoYcU6HAVApUR79gPWdhjOdsHatY7HyIbIBweTjOOTnPkcZI7elbuKIt2UIPMgDHnj03ft2zzWULKVcqSdjyjI7bDt19vYHx3rhAWIBHJJHJyQMd9x59eAfLHpWs1DAzwSFG7BPJ2luMgD1748vOp88ymlFSjhKkkAKJ58EJ9LpjGecAEjKBv2qV9Nxj7STCjCwyM3H+OUCDBAwORtPIzjPOapb2rzbOjb9M48eazgXlviAvIpTkArgFUbjJ4ByBkEUKsSvINKUpSlKUpSlKUpSlKUpSlKUqq2oIUFncBK8jbOC2Qfb326+0nf5bxQ0LggHKOBntkr5jn09KmHSlx4Ou6Q7HAW+t1ZvXdIqZ4xgnc2OcAjnIOKxdqNOJLu2CTkYIzjA6gHI3ORsR69xVX3wb4yuTyxPHABYg8njsv688civdmjyIwjQkFmX4fIn4ULZ5/XgDjz7g1CwQvziRz7ZHMCCc79SR0xtuMY6dK0ztjgZznGeOyk5A755PcgduMipSUZYye6eGcBRliSM5IJ9cnA7A89qyraUYaB6YTjIzvsB/vvnpn11lUkHgE+eB3+HJz2PbGaj2ojLLvIAIPfAAOc4zkeYJz+ePSphxtSEDJ9E8vKMkYOMkFOAM9cnf142zM+lhuvJmGMCA5JALEsyAEMctj4SDkjGAACDxQXtpmEPTlrGcBp9VgAxxgLb3ch+EDBO4bsYIxnODiqFTuvLFKUpSlKUpSlKUpSlKUpSlKUrmjBUkHpzJB69M+3tvjbuaxy58KTHcIxH6gZH/fnW60OUR6nppJOFv7MkDg495jJweOcBuc/+7scAHyF5T3FnRvk6cOdZcXOIF4Fk0vpeIuTIfZipnXGZNdehWqy2e3REp+c3C53yQIsKHGS6G1zZin5jkdlpyU1X5tpNRv1s4UDyTErtIIRQNzOzMCFRIwGJON21dsYZiqn2st/baBok2t303gWtnEGMgw8zOTHHDFGgBklmuH2okasB4jKXYKCa0cXX5ZfiW5rKz22wcDNM6StV2gWPUmkonFTXUmx6o1PpzUECbOiSosFVntMd+8KgMTI7Vr00dbx5d0ZisWqfcI76Z69mvSdg0Ujrey3DQyzQXBsrVZIYJYHVJEd1eYCMM8bEzG2ZELPOkZVlERn9r2sC4trZdCt7KK4htr2yGs6k9veXlreRyzRSRRGCEG4VEdFjs/tBJJtqRTyxssh25+R95ell4+31rhrrTQtx4TcUnok+4Wq13Gc/etJ67tlomz4l3m6C1PKs+mJtweitwX567NetM2O6iA1cFxWJzundUIscdutHhtkN1aXnvkA2iVVQRXNozRo4FxFG80eFDhXeKd1DOhbak0DyyrTurptXuI7G809tNvSJXiEk5uLW+SOWQNJY3Dw2c7fCrMsVzaQSbFkVQ0lvcLFsalE4Qk4xlRBHqwDnYEEE9PdW56RT767fJ+GJFbIIDFnJBXgggBBhgRwTkDPNU+3efGnaHASMzXt1MBxkCCFUCnzG3xznIGSV5zlas6nVeaaUpSlKUpSlKUpSlKUpSlKUpX0bEe0V1YZVh3yDj9fL+ay28ngzwy5I8KWOTjvhHVjj9QMZGD6EHmtMvy0uk3NYcCeF9qkXSFaNNK8oXRw1hPut2jafszFin6N4h2dlF5vs6JcoNrgS75crPbg9OtV0hPzpkKJKgPsPrCYdpc5tdQvZUjeWVNPneCOKIzS+Ik8DkwxLJG0siANLsSSKTYjskisgDev+tLY6h0ppEHvEMFs2vWYvZZ5lt4fd5LS/iVZ5mWSKKKaaWCMtJDNCzvHG8RSQlfwv8YL/AKytmtdNsav4uOXW/aQXbtVaavFtj87Vt0/dbbYr3pa32Ry0W+I9b7xa0/OPmtikMWzTVoS5HdssyMxcpq127pkVm9nK1rp7QR3Ly2tzG5HxyQvJDLKwkkJkWTD+JIQZpdirKXKqE8l9QXWpRalbQ3+tC7lsFgu7GaJWIhgnSK5toLcRQoYWhQp4NsdtnBkmCVEd3k35/JZal1vxC4m8AdSXzUP03qG7eUC/eNI3OHp3Rqrw7p99nSl513bbq5als6y09Jd0G3fZdxu78ZWhktRrzpTT0p6XdtQJmV51Db29nc3dtaQvHDFpgguFlkulQGP32K2dPE32c33pVPCVzd/HFcXHwxRiO7vZ/fX2pfZl5fXIuLmfWXmtmSCzEghkFpNepOYnS8hYwJK73EkQtCEksoB944k/ahKOVpwMeiNv3v4749/Wtb0qpEN4/kZIo8g5BMYkJwexwZPI5xjIXjOP26Tlrzp62zxHbX8+AT/88lqgJHkcQHjtjBwDkm1qV1QtKUpSlKUpSleovqlcR/trRP4lff03W2+x7n8W3+aX6NfJ77B6S/In1KfVK4j/AG1on8Svv6bp9j3P4tv80v0ae+wekvyJ9Sn1SuI/21on8Svv6bp9j3P4tv8ANL9GnvsHpL8ifUp9UriP9taJ/Er7+m6fY9z+Lb/NL9GnvsHpL8ifUp9UriP9taJ/Er7+m6fY9z+Lb/NL9GnvsHpL8ifUp9UriP8AbWifxK+/pun2Pc/i2/zS/Rp77B6S/In1K1reVDwd07xZ0VrrhBrpp1203tt6zTZFucS3Otd1tFwbmWjUFkkSGHER7xpu/wBugX+xTHoriYt0tsOQ9GcShbK6hvp5tP1FpY9rSW08yFHzskGZYpY2XjMc0e+ORSVJjcjg9v0H0PT7PqLpe3tb1W931PTbN2ki2iWFmjt7i2uImOQs9tMIriByJAk0ayFXwVb8j+ufkrPKx0BxqkXXTnk/aV8ojTt3uMv+2uqrZrfQ+nWOKlnmX6ffJqdWWXiBebVfdGXi+wpVu07cWNKXS7WK0M2JV2UdUTruv5pKo+qNLutPNudWn0mVFC2UJtp3bTJBEkKeBLaK0E0ULI8yG5RZJfFEQa1jhG6mdQ9knVema693b9NWPU1nM7tqF9DqGnWqazby3MlzKby31SVLmyu7kPFautjJPaQe6mdkvpZyI97/AMmh8nsvyc3WOKvEnT+mNNaziWy+af4dcONKX3UGqLLw50vfNQ329fPLxfL/AHCTGvGvEWW9NaMFwscKFCs2mIcq1ouepXbxOudRfVtdF5IYILqW63mKS8vpIoIXubiOCC3dYlgiRltpJIRcMkjNunIfw4AojFjdJdDfYUfvl/Z21hcIJobDTbW4uLuLT7Oe6uJ4vHmuZJFlvo4ZvdBJFFGsdsGjDztLJId+2g+Bur+Jlkd1DY7hp2JCZuMi2cl2l3JiSt2O1GfW4hEK0T2ixyykIStTyVlxDoLYSErXMukNLmn02WZJI1D3TKRIXU5SKIEjbGwIJJHfGQceYHn/ANuOoRr1XZWrbz4GjQudgBUG4vL1tuWZMHYsZKgYXIx3ye6fVK4j/bWifxK+/pupV9j3P4tv80v0apj32D0l+RPqU+qVxH+2tE/iV9/TdPse5/Ft/ml+jT32D0l+RPqU+qVxH+2tE/iV9/TdPse5/Ft/ml+jT32D0l+RPqU+qVxH+2tE/iV9/TdPse5/Ft/ml+jT32D0l+RPqU+qVxH+2tE/iV9/TdPse5/Ft/ml+jT32D0l+RPqV76FyR3HY9s9PYfhjJ8e1SKtVXMXJjuQPv3H7/LxpSuX0lE7uJH3/wC3spSuSbhEWcB1I6dSBuf39+9KVXS+yv8AlcST1wCKUqqCD0IPfY9vGlK0j8bYKWeIuvouAAzrHUgbBHRtd3luNAdcfwlJ393aqF6iT/zTU41AGb27A54w0rsvYDyKr25PJ86/RL2cXPidH9MTbf8APQdIDEHOWFjAshIyMElSWXIILFeCuKw3BiBp3PKMA52A8em/3Z9gqJPbvkngkk5wCeQeeQCTznuBjyyKtSG/PheGV7Dz7Alceb49fPmsiQZHK1jw7dd+2fb7O2+e+eGMrkkYHkO+SeCe+eAMY/OtLet4gYgAljyRkAglhjB7YB79zn8q2neTH5iHwgssl1xtv6QuN8mblIUrzd0kW/mI6k/9DjJ3wkDtvfPR0fh9P2h/EkuJM84J8Ux+Y7gRgHBIxjsc14G9s05l9oOrR5yLa20yEfkWsYrgj/7wf3/YZ1cvdvbz/HQrY9D4fD+vqqT1VnHqo/VgD/sTVovUcEZ5VcxHcdO3r9fj8N6U4/1L8y/3VL+0kdRASknPQAdfgfzpT9wf0IP/AATVym8hQyGz9+xH/wA/vtSlffpJw/3T7wPhjr/xSlc3YC8khIWM9U7KPtHf1nb4UpUe5GI7EH1gpJ33z2xjbYUpUa/AC8jcHflO+fYO2/U+3Ix1pQgHg1CSIchs5Qpex6jfx6gdMjw5k+sZNK6MJO6yMPyJJJ/fgevp+9RLkm4MElDq9jnGe3q/5BAFKwM8ynDM4PoTzUfI1rcLShTr7/K03uStXMAM5JwTnfG/frkUrlZXP547ngf/AJWq3jdqWPO4lavntOIW3NunzsLT/KVSYsd5wjp0cWsEjO+SBvtR/VaiPXtRU/jLIeMAGWJGGBgcfEcHHIOfzr9CfY+fevZ70xPyQbKaM4IP/p7q4txzzjBjwc5OeMA5AxExeWOb+cEk9NgBv16j27Z9m1Rckk5NWsIuQMsT6Y/L0ALfn3/iuws3hHJlK87gA5wfgcn2HHTA2ArrvXK8j/Jf1/yHYef7VjkhO1u+QDwQeARznGSMjzx+dbKOEUmYnQWlYbTuGU21LwSlWOUzHXpizjI3Ut9Sz0yVEkE9fQHTsfhaJpqYx/4ZX7Y/6rNKfId9+eQCe5r83PadPJd9e9Uy5Lgam8O7jtbRRWw88gfdYAOMDjAxgZoiRJDoGVrXnsknv78d8dex23rdVAlUscKM/uB/zXYotqWeUq2+J7+vfc4OenXG9KzrCBy3P5dvXzBqejW9tHQcxHc9uhGT0Hhtv2PalZgAOwqUbhE45Uk9xyp7e07e7Hc70rmr9qAodeVA/wAyj4ezv93hSlS9KVxUEkekEkf+2P60pUbKEJtJ5lBG3YjA2PYgj3D79qUrqU+4R2woMKCzvjnGOvYFOfWMgDqN98UrhmVRkkD+T+4GSP3rotynz3QoIYyPFsDOMkD0hhXhuU/cTSvnaUE8Dt5579vyrFt+ttynNupUpzlUk/w3AcdDnoAfDsfWaVjaRmyM4DYyBgDjtwAB35rXNx64VcQbdepGodP6buGoLNKZaVLasbCp1zgPtMoaWTamQZ8xpzkStpdujzHgpTgeYaShC3Kz6t6Z1O8vpNR0+JbpZY4/FgRtkyNFGkQ+EjbKGVFIOcqTtOAAa9d+xL2s9J6P01adK9SXj6VPp8t37teTqzWVxDd3k14N0yhzbPE9w8ZWRViKqrB9zFR5Be1DcbbLMa5WXU9ulJVymNctL6igSEqHL6JYl2xl0qB/uhPMCcYyMVXk2i60jMsmmXqkHn7hiuCfhw4AQgYxkNz+p59M2vWnQ1zGJYeqtAaI9iNTtY+4yM73Xb3HDn8hg5FZb0fY9f6wdjRtP6J1dK8+tIMmZYLpZre22T6Ty7le41vhLQgbrQw+/JUM+aju4xX12PSmv3siBNPmhUsv3twpiRckYJ38kD0VecEcnio31D7WPZ1ocEskvUlheSojFLXTX9+unbyRUhXA3YwGkkVAeGZVDEbTeHWjNR2C1QIs2Q4tceLHZ82VFLDammkIUlA9EqSCnCSpIJT/ADAZwL7s7f3SztbXcG93toICwGAxiiVCQPIEqSPPHfmvzp1/VTq2ua1qwDx/amq31+kW4ExR3dzNcJG7qSC0aSKh27hkcMeazxbX7pHCQtYCRuQlJVtgdvRH5g7ZIzX01p1lZe+GGc4PAyeD2wfIeflXd4F3ZTyiQha+mTskHx2SPE+PT1b0rOJUOOSD6YOP2P8AYH712+Fcbc4EhCUJV4HrucbZyT6zkZ270rJ/sf0IP8iptC0KAKVJIPTBH5f6bUpXOlKinriBlKBv/oN/f9x7eOVKjXZchwHlUB17nIB3ODgnt+80pUc9GW/nziioHwJPfrkY774GAD0pSrVVrbPcjwBAA/zEE9fhufClcFVJzgftwP8AYYFU/olknoT7sn3DPxFK4KKeCP5P91URp5t3Yx1uJP8A5ZA7erGPH1jbqaV18KP/AE/y391XToyC5u7BiDOx5085x7N/b1HxpXYIo4A/k/3VdOhLHj0o6EnwbbbCfctK/hge2lNi+n8n+6+/2MtrWSxHjZ6ZU0Eq6dQpOwJ26AUpsX0/k/3Vu5phtGcRemcFtaiPHoCSB6gOnhgUrgxITkr/ACf7q1NlbRnmQtJ32VtvnpuP9RvSgiQHIX+T/dBame2R6vRPuHKQev760rnYvp/J/uqybchBBHNkHOdx0O2wwP3jNK7AADAAH/P7nuf3q/aMhkbOdANio9OxI6+rHTYbUpUi1cHEn09wNz6/u6e4A+valKvfmGf7yfbjP9B+YpSuQgJHVfuSKUqomE0P5lKV94H5D9/ClKqCIwP+2Ff4iVfme/elKqpbbT/KhKfYkD+lKVzpSlKUpSlKUpSvhAPUA+0ZpSqRjsK3LSMnvygflilKpKhtYJSk82DygrIBIzgE8q+UE7EhKiBvg4xT9P8Av/muRjIzkDIyQASB54BKgnHYFgCeCR3rxunjjxbtFkvjl84Ha0vd9aNxl2VzTei9WQ7GmC9ChzbBDuCJbF3vMyc0mWyxf34USMWbi65b4lrKbNqGfa40NY1KOKXxdJupph4jwmC1uViEZRXhWTcskruoYLOyIoEhKIgWOd4fQreyr2fahqWmrpntO6d0zTHFpb6kmsdR6Bcak11Hc3FtqdxZvBJYadb2srQPNpMV1PP4lmiXdzdq2oaRaahmDhrxVtfEyBYZtu0vri1pvUa7vOvXbSV6hWm1SbNdJ9qlW2de5kKHCVOU/b3i0iKH2lEhlTqX/wCHWzsdTS+SFkt7uPxVkJMlvKkcbRSNG0bSsioX3I2NuQcYzu4qvOsvZ3e9GXWqW93rvTF99mzWEaR2Gu6bc6hfQ6jZWt9BeW2mW91cXS2oiu497zCNxhnCGMFh/9k=</t>
+  </si>
+  <si>
+    <t>Sữa tươi long nhãn táo đỏ</t>
+  </si>
+  <si>
+    <t>Trà xanh long nhãn táo đỏ</t>
+  </si>
+  <si>
+    <t>Trà Alisan trái cây</t>
+  </si>
+  <si>
+    <t>QQ Trà xanh trái cây</t>
+  </si>
+  <si>
+    <t>Trà trái cây đá xay</t>
+  </si>
+  <si>
+    <t>Trà xanh trái cây</t>
+  </si>
+  <si>
+    <t>Trà sữa trà xanh</t>
+  </si>
+  <si>
+    <t>Trà sữa Hokkaido</t>
+  </si>
+  <si>
+    <t>Trà sữa trà đen</t>
+  </si>
+  <si>
+    <t>Trà sữa Oolong 3J</t>
+  </si>
+  <si>
+    <t>Trà Oolong nhãn táo đỏ</t>
+  </si>
+  <si>
+    <t>Oolong trân châu Baby kem cafe</t>
+  </si>
+  <si>
+    <t>Oolong thái cực</t>
+  </si>
+  <si>
+    <t>Trà sữa khoai môn</t>
+  </si>
+  <si>
+    <t>Trà sữa sương sáo</t>
+  </si>
+  <si>
+    <t>Trà sữa Matcha đậu đỏ</t>
+  </si>
+  <si>
+    <t>Trà sữa Pudding đậu đỏ</t>
+  </si>
+  <si>
+    <t>Trà sữa Chocolate</t>
+  </si>
+  <si>
+    <t>Trà sữa xoài trân châu đen</t>
+  </si>
+  <si>
+    <t>Mango matcha latte</t>
+  </si>
+  <si>
+    <t>Trà sữa Hokkaido trân châu đen</t>
+  </si>
+  <si>
+    <t>Trà sữa Matcha</t>
+  </si>
+  <si>
+    <t>Trà đen đào</t>
+  </si>
+  <si>
+    <t>Trà sữa đào</t>
+  </si>
+  <si>
+    <t>Trà xanh đào</t>
+  </si>
+  <si>
+    <t>Yakult đào đá xay</t>
+  </si>
+  <si>
+    <t>Đào latte</t>
+  </si>
+  <si>
+    <t>Trà sữa trân châu đen</t>
+  </si>
+  <si>
+    <t>Trà đen sữa tươi sương sáo</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAgMBAAAAAAAAAAAAAAgKBgkBBQIDBwT/xAAvEAABBAEEAQMDBAEFAQAAAAACAQMEBQYABxESEwgUIQkVMSIjQVEkChYycZGB/8QAHQEBAAICAwEBAAAAAAAAAAAAAAcIBQYBBAkCA//EADYRAAIBBAEDAwIDBwQCAwAAAAECAwAEBRESBhMhByIxFEEjMlEIM2FxgZHwFTRCYhexwdHh/9oADAMBAAIRAxEAPwC/xpSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSsD3O3JxPaLA8p3HzewWtxjEap21tJAAjr5ijjceLChsqQJIsLKa/Gr66N3FZE2Swz2FDUk6OSyNrirG6yF7IIra0haaZ9EniCAERR5aSRyscSDy8jqo+a7+Kxl5msjZ4rHxCa9vp0ggjLBF5MfLux8JHGoaSR9HjGjEAkaOtnGvqUZfn1tDdwn01ZE/iUm0arUt7zKQgTkbdcQEs3mIlFMrmoAFy267BsLcG1VHnHG4wOOjC6+st1eZJbTF9LTXNsbwWRlmvRDcc2JAdoY7aZYk2OLcnbgWBfiFbU0Xfo3j8TZu2X6ys4r9bZroW9rZGaHiACIhLJcxSPKRyIVooWbXFULaBgp9Rv6+B+lXK421uzu0NDkOXjja2+R5Tuvkj1FitJLsa9JtFGoKujNZeaMuj1N6wYuauA69IiRIpSQKa/EyWY9ULnvSWWExBaaEmO7ucj3DBDJ4XjFHZszzhHP70yRI6lHQEE1t/pt+zpb9T49c31N1G1hjLi5MWPtcRDFNe3kUUnCaSeW8KRWIY6WNGinkBWYyhAsYmjP6Zv9SvRWuAUN96kaOJFyWusyo7Sr2yxKwmf75YcEZEW+qWH576UFggOvV86nSbJgtz6uY4w85HUiHCWfqX1PbX9lHlcRBc43gY7y5sIuF4jqhYXBtnlO47jwLfsBfxVKFPAY5rqn9mm1TIXtt0jl1nikWKewky15FBFAruUktZ7ntJHKbd1PclG/wAN0d+HNA08PTf9cCi39osvz4NlciwrbeozmuwTE8k3HlHgsPPb2zceFqvx68mRJlB9xRAjjGgzJA+9cmMAs+M8bbLmUPq68JvWnwExithDJD2rnnJcwyxtLIhCwMkF5bxgNJayMeQbSyB0ZK0rqP8AZ/uunzioT1Nj8heX1nPdX1vjomujiRDKIg9wFkWSa1nbn27iJRoJy7bryZNpG2HrA2r3JmVtQS3OIX1q+3Dh1mTw2Go0mc58Nw4d5Wyp9RJeeNCCOBSGHHiQR6AbrYFtnTHqT0v1XwjsLtobqQ8RZ3SiOXuDYZA6NJG7BvawDBlbald+KibO9CZ/BCWWaKK5togzvcWzMQsSnRkeGQJKqg+WPFlAP5ho1KxFRfwv/vwv/i/Ot+B3/n+f1/T71ptc65pTSlNKU0pTSlNKU0pXW3NgtVUWlokd2WtdXTp6RGPl+UsOK7JSOz8L+6/4vE38L+sh+F/GuGPFWY/Cgn+w3XKrzdEJ4h2Clj4C8iBsk+Bre/t8fP2NX/1i+uDPtyN76XYPNJdxhGBy5uOZJFWpgNHV3kmPcNSqlkXpIp76LVPsg/avLICZFeVh4BaFsldpX6ydf9TnqKTAZGN8Z0jDd2sZSOLc2RKNDc2+QaY6Zoe/wjFtG49qymZS/ELeP0c9L+n4elo+sbAwZbqX6e92lxMyrYr9PJHc26wKCEmeJj2pXUhy2kI3Wqn13b8Zpsbvtg9btteX9zjbNJV5tkm4uQ7jOt477iRLmx7rEa2Gs+a3Ctwgx1ZD3cT3Tz0lXa+ukRYrLsiNsbhMXbdQRZ6x6svMvf2cgu7XE27B5DMIxyljV29ttFIzxSEDkp1yA5aMydNWkme6Xy+NzXTWPxcWRM+OW6OOSE28IAaGZ50jjLzsSJYwrFVUceXcEvHXt6sc2ieqzOKvNHJcWNTvQLTGoFZi4V5WhYc/ZO3VPHu5Nm3bRXZsYCJtG6sW2RbYZdix4clxyPra8Bnc3Y3uX9sslzkMnJetNeRxgLI4RZoYoVkLSKxVHldypEpcovH53fC9C4qwwlpYSXAeOGGIlondomnEfaE8czrG6kAkcdOeBWNmIUMOpk+l2so9r8G3fjZLZhi1fu+G2e9qRYj11ku1sOdVDZ4NlzjsYRerscvMehX8GM7YMiqZlBOGquMSo7Gt0vh1Jf4a5yFulvLeI8sUke4rZ4pgrSWmmfT6ueJ00RBQRSM50FNYWLIdPYfqJ+n7kFmbDre4Ca4YzWmS24hv7UxpyhNzbSmMqZAVa2uEI96yKNndR9U7ZbEqDDtstktvWV9P+CVDeLwobyDMuZL0ZtY9zdXFHOSfBtZmSTfeTrObYPG5OddT25siJtBGU/U3V2L+lsL/ABOPjmeK2muFMsssEzTQFbonvFknUqxYwuzCMHTLGrKgxUfo9FkLm/zN/wBQSzZS9lkmBjSBYLcK/K3SKSGOOeHtqEiTtiKNDGT25VIY+ygztjOZH3n0s59bU00bFrw7W5dMsRoDlT1fkMxsQlWTbkijjxl8nsa20CwxyvfBoIM6nGNHaLpQWazT3OSwGYgxmTgAa4trIwwIAAFRxIXXyoAHKRSeXu76sqsOMpgraxtja9T2CZO0eN+WRWMSThI/D/UhPa7SaHN7ftTFWflFLtjW4z0iev3fGt3VjbNZxHk5HXw6VmzlWrj/ANwarmmE9vNr7KQKue2kwpzaxGZLThRrdk0sK4+fIxqfPS/1L6lvsvB09lXOetDAxbJmNYbuxaKI7ju5Yy8VwgdQglZu45ZSpbyaqn6nelXTdng5up8IxxM4uTGuMY7hvAz8kkt4WCMgljbmFUKYiAsoYk6sZQZPvYUOYrRse7ix5PhcThxnztA74nEVE4Nvv0NOE/Ui/CfjVnAdgH9QD/cbqrpGiRveiRsfB0fmv1a5rimlKaUppSmlKaUrhURUVF+UX4VP7T+tKVo9+pLR7fYhfRxvtuMYv8dvcbC0cjzK1nlmaE2ZCmuRTbVtxhxwWge4YcDpz2bDkhFIU9RLmzhyCY/J4zGZCwurJLiKLIwI6LMskqSKkvloWbiCpB4r414IqyHoxa5S/sJrjFZjKY2/tL9rd3s7lkLW7RI8YdDyR0BZiS4O9ed61VbHcKi9HEiRYvXO3G6WOw7R80eLD8nk3uKz3y7IZpW5THdVixYXgkKKLEuP8kwaoPKQrPgOhchcwyf6LksJfWwLQ3GHyKxyWw+V/DPPlDJ4AWSIwyL+ZdkGrcYzLepNnby2ozOCzFuqpzhzGNj7zK547Wa1mjRxs77vcVhIR8EEDoo2JelOvSE7g+5G5uPy2acIkaLkOF4/klM41JRw0ly2ZLtGU605N0zmBKSQThoshHC7IvynSHT9xFJ3+rOpTDJcmZlmtsctzEUYDtwTQW8HC18fuwvEqAQ6+WbLr1P17bj6VulOnLhlVWWW3yOSgVm8N7ow8ysxJ2QR7vJbZO66HajJtndsLTcmPceovJMsxDd6tZpNy8YTbCuqmrk6q5jXNDeVs5M6mt0eWUDrMmPDtosVwXIFjYty4kk3wJveRZ9KpZXGPlvLu+trq1ht547r8QOsMwmhk5x3Mcvdik5MhV/askiheJ0NUya9aZOfH36dN4vGX2KvpbvHXUF7JqHuW5tbu3e3kx00c1pdRlVlSQHk8cUiuHUGpWX3qB9LU6S0xgr0/D6N2uCDGocRw/HZsp/xgEdmzsLC5O0kPXBiK95aMRWUHs4TAukZLFnUfpv6b5e7SUX2cxcMMbI1njg3CYkknlNdvfyR7+eMIjTZ5KFLV2cd/wCQrS3aS9ssPkbh7gzG8ubxkMfMFzEkNsllEsIAAVW5yADjsgAjB8MD01w8iW/Op3gzm2kmTCTMoy32NcKTP23o0anx6LDOI3IbHxD4YviNo1EuFMhLK4bor0vsYooLbCXd4vKNT9ZO8aSuu2HdEHCSXZ8lH5K3yRoecZnuofUW4jMMl3hcfEAWWPH2IeQBfPLu3JkhUL4KttD8kHegbJf07tvdvbkW7mt26xzHq2PTuWTNakBH5JSklxocSRZyJSG7KlIim4hPiikgorgKYII2W6IxuNt7dRYYuxx1uIyyQWsCR6YOAHkYKGkbWi3MnZ0fOjVNvUzL5aW4eG9yd5fTGcI000rcAnF2dI41PFFJIAAA8bHxW41E4/GpG/nUPDx4ppSmlKaUppSmlKaUppStVX1SsLG22/xTKCiq/FrzvKOcbYI44BWEdidA/bT9ZgqQ7BC4RRbIhX8qiLCfrJaMLTEZJFBMUs9m7aO1EyrKnlQT8JLrwdEb+STVif2esiI81lMYX4tNHbX0aliiMIHeGbk35Rx70J4trn8bFVeMkm7X5PjbeHWsliJ9uvjcmo64qON2EUZAeZpgOgvq4zKKKpknLzBOByioKaqldydQYzJpc2glkEkDQg8Nq8Eh26Fn2QyAAq59wbyAd6q9VnZM9xNcpEsxkSN0j5AKvhHXZ0dbYM3AFgRoHxWHZbi9TklbGcx8QGLAaAXp4xRKXIGKJAAJEbQRbAGkFCZTgRFP0cqnz38RkZLGB1uS5eXucYy5RI2l5MwaYkBmY+eWidnZ+djIDuJMUkY94usgGww2PlVPxxBHEEH51s/aon51VbQUEVmrv7B5+dJlHMdmBHksSI7Kcg8wap0bbQ3G/wBkSVSRVRUHj/l2bWTqq8vprjHxCO3jVI1XmrRsxbasTs8uC75MBsgNob8DIzTW8cBFykalxtIn8sx2SdEAn9QV2PtrYA3gW1+J4VlcnNnaKHaMpEZWVQ2y20819wwndiJYQhVqL7V0uIpkrPcpDgudiFELWcvrzJ46TGG/uImWQFb23WFCCm9hopJNsrg6bZdhxBHHdYm4s7a5sppIFMcispiDSHiGA2yrErbVFUn2ka8b8n5ml6ecRk081XZ0iTJvZs0w6K+57eCypq0DURXC4fB0SRVIkUfIHCDwvZd3xWQS/khht40jtUhjfvAR8pn0GPMqF0eX2BJ+3x4qIuqLYW0MtxLKHkkL+0uxVFJJUKrFvOtE7OvJA3vRuOfTzxhyr22m27gp4pLNVWRjVUUyOOEibL7InPPKS4aqf4NxDRFXr8WD6VjK2Zc/lIjRQPsw2zeBrWtqCf8Aqfn70a6/uVlyvAHyrSyEaIADERronyQeLkeP+Xnz4GwzW11odNKU0pTSlNKU0pTSlNKVBT6jUBZXpZzWcMZZR0U/H7ZAFURwGkshhSHG/kVUkalqnAr245VE+FVNA9SbT6zpe5XYDQ3NnOrFeXEiQxE6Hke2Q7P2FSv6K3QtvUDGIzcVvLa9tSC2lf8ABM6qRohttCAEPhiQNbIqiTuLkb9NnUu2nR4qYpMOfJfekuvG+ybbvlOSaNCjzMh1xpQbRp0uxGBI0Jc8wPd42G9sILOMEZS3EMAaMAfVa/XbKGHbILFSH4If0Jr0KwcOSsbm5lnmEmLnLuqsdfRoRtgd6ICsCdE8Vc68+BUiqDJK+7wKBZVsxAg2NYxNfBiVGlPwXzbX/FmOwSdaF9AHv4XFJUacEXDR4XRSPpMRcWt9PbzqvKKWWMF4OKye4cJIlmVWZCWCFwd7GgACC24wRW07ROJdqU5IVMLfI5gclYEHQPgFTsfH6wN3ajtXslyvehvvRFnNk5JHhXm3fkf2Xm1Txq4JoHcPGoKSKicKms9jO/YTd5JkL8PdCUIjZQPDa5/mT7Dz8/fVZS6xttd2oQrKqn8t0qqJVJ2QFaQlQpAI1rfIDR+9fa9pccYxrEIMvD2WYrsy5iVGRx3uZbsmHJ8Zq6cp9HngeaQS7EiCIKDiIid+NYDJXL5HMyRZZi0f0ck9jw/DWKSNS3AKhAIcaPEksV3oj7YK6tRjbcRWbAqzLzdyTyX4diSfLeQRrXgaKjzrYJsdTQZU+BMiRXXJjzjLauPkroOPq4Laq20iAAtNtqqKQgiIfBLySL13To8SrMsc0iLEvu7caBCASG05ABViR5ZiSRoeNioN67dFhuCNyyDmGLHipVAdgjfnx4A+CCDs/a4J6SatavZLG0JtWzmv2EteURFUEeGM0qIiIiD4448Igp/0mrWYFQMbCQoUOXZQPjjy0NeAdePG/OqoV1TKJczc6blwCKT9gSC5A+/jmAd+dg/bVSW1ma12mlKaUppSmlKaUppSmlKjp6tqEMl9N+8VQYIaP4TZP89EPqtebE9D6qQ8oCRyIuCReqF+fwusdZWxuumc1EN7+hkkGt7JgZZdAjRXkFZeQO15cgCRW5enl62P636au1GzFlIVA3898NB8cW3ruAgAbYgAa+aov7t4jGFvNm6Ssr8gaZSS+cOVEZfchRHGTKySO0pE88Dbpo4IKKgy22jjbnwK6p4MyI8vjY7+5nsYwyos9vIV705P4BckERnhqJ/LcuWj4JJ9TbZJlxbPAI5ZL2IRiG40InBUD2HYUtIx7gDEe4BePIbqLmCXbOIVuQswKmO05a10pXSdcV+AUqFCRqtMA6o7GbdQzGY2DnBdBdcQyQRKTcjax5ZLGaS8Ewt5AqMAvcEc0iCRGceG/LrbABCBr4BGt4Wa9gysePezkt5Jpo0YEAqoVtHRca96Ft8QpB4nfgiv0ZZTRqvbOLujFt5z702JQON0s4caZiyjuLF2pNpyGjTk9wI9gw6rrDVgs+LDaZddBt1Hxj/MvT+MliLqJUZlIEi3LbV1BUEaBUAEcmUqQdlf+WxJMGSv485NhLi27dvbSPI0hMryLGkAmjZyTxaYpIvFjEIm2nEkEE5tjV809jciPVNRoaSmmH5jwSBjG2Im14o4xu3t1kMtOmpG2aOvGpAhKgrzFy2VuuVX6iViFZezGEZ1UhXDsZCOQDBda0VIJP38YTNXFyYl+ngjeN/exd/cCzqTxU8VHsfhojQA3sk+NmnpWrm2oOPJMakjOKe05w4fL4sBwrQL8OEquSF7iHKL0NeVA0FU3PpxlnyTrGySIJ0Ct5ALb3oKBybiAQSdgfpqq++ohZRMyfhgWzI6ELsSHbHyNAaQHyT4IBHI1cD2KrkqtodvoaD04xqBI45Ul/zkObyqqqqqkj6Kq8/n/rVrsWgjx9mo+BbxkfzI2Sf7iqF5qXvZbISfrcyL8a1wPAAjQ0QFAPivrOu/WMppSmlKaUppSmlKaUppSsO3Dq/vmA5tTdFcW2xHJK1AFOSIptNNjigcfPfu4PXj5QuFT5TXTyMIuLC9gYAia0uYiCNj8SF18j4I8/f5+PvXfxU5tcpjblW4m3v7OYNvXEx3Eb739ta348/p5qjDmtfJhZpLnUYwllt2L8GT76L/AIrkbsy2j0kAbQSMe/QjQTLxkKOGQeQk88+r2WCaa0uGm4xHuNwZSwYDnzU72m9AjZOtgcd6FesmDmkmw9us22R4UaIiRkcNFyYIp3tiOOtn7j5GgB3+UbS425tplVjNoMKhW4YvfzBchsG24sn7VLlAqi49wDpmgkIH4/C4qcC2gh01/A9UZCLKWFuMpeyQSX1hD2WZWHbaaNNMANA69rNrbaJOydn9cZdzy5vGIIJZF+utkDykPpTcRoOJ7ZkZQp8MpY+QV5a0dWu42NY3W7H0WRnKvnpM20g18eP95ivUbF4F+7MmTQrUrBtmpbkaxsmWpLrowzX3sFLaVFOviHaVpme1lZAwKxSEBSi8JGRvOtfddkknZ8ednQkq4lu16pvbeaO2EKQzzTEW8/1ElmbSEIhldnidYjHEzIjCVPa6wq/dVc32zyxiRDeqHYkOVBdJt0yNtsJivNGisl5eouCTKipKSJ1cHvx+2qcw5fWUi3EFwk00U6DiRyZl1IvF+QJIIILHZO/Ot6Gjpt6iSxliysAzFDpQCBtiioH/ACgAedAcvj4rbH6OXJlpktSj7bhoLoB1kuF1JSVGx6i6KiJ8EpKJCvURQRLgUVJM6RtokkhdBGXMi+FVVG/GwTsjejsD7j7b0ard6nykW1yOR0Ff38iRpSTsADZ2PAB8An5+NXQ8YgDV45QVoigJX0lTBQUREQUiV8dhBRE4ROOn8Jq0luvCGJPHsiiXQ/gij+36ePtVBZ37k88nn3zSv5/7Ox/+ft43Xe6/avyppSmlKaUppSmlKaUppSvExQhISTkSRRJP7Qv0qn/i6+WG1IPwfada+G8b87Hje/ih39vn7f54qkB6i4jWG7r5xjsk2q6ZUZZd1jbyA4HaDGtZrAE4AF+2PkEgEUXyIJARNqLiePzg9RbdkzOUUMk4S7uo3CFdK0MrRupUqvvTgVZTobAP8a9aOgJTkOl8PeIDJFPj7SfgzDw8kET7RifKFXLeNAkn50N+rF7LA7Oii1E+7kBaTVkxZBt102cMkn5ZtMQwjuu+xBhyE7xJR0XZZSQ8SGLL6GGmYi3sjEryG5s50ZpHnHclOxJuNoxE6RhSgALBTL3EJjZOfjs5BcvDdPPFDE8CCJogJo4wukBZi5HPuLKoKb/DRWUaPb00QvUZ6eMUw2LMnvTAagS3XosKNGbcRxEitpLr4z0MbyZGjMOPw4atOvMLGr33I0fxlICJxKWL6hklktddUzXcTyTW88MjrHMqW8Uuw8B/H1KwCgb4D94WZ2FZbH9W5S/t5oWsz3FiVgxROEjTSIkkgnaGNWkWOR2ccucxeQ7IaQDFcRwnAqu3rncWcvbFh66nE+lnWuNw4NCjgFVp9zcBHJcgGUNZJkQKTTQF4m3CNvXxmMlbTBzY3juSzpwdSriMBTEQAOTv+cPpNBSGJG9DqmbIG1dL+3ggcW0XFoG5iW42e+OJJREJ4lfJO2ZVJC+NwfoooIdtuNjkSsBqUwd3Tx3HmgQWx8s6O30bPqpn5Ve7OIK9eD6Iqr2XUn+msU8slt3gfdLb6jchj44hvPkBvPHlr48HwPFbPVqb6bG3byEiRoJjrlsg8SQGCga8jZXYPLyPGzVulEREREThE+ET+ERPhET+kT+tW2/lVFa50pTSlNKU0pTSlNKU0pTSleJ8dVVfwioq/wDxUXTz9v1H/v5/mPkfx+K4YbGvn4/9/f8Ah+o+42Kp0/UwqqKk3q3jSyiyYslrLrSVAsIaCsjyTn25hIfkDgge9wgirKdRRAbQVNSNfPP1SsriDr/OWtvFEveyUlw8EgaOKRZZOUj62E2S5PcXRcEMW5e4eonoPdz3vQvTUomV4lxcUEgd/CiJGQHX5lZVQHizHRU60ulqBW1+aHkdE/WFX1Uhx5W2odrFjI3dsgLrwm6880fhIpIKIH3TzA5+4BpyirH95YfQuWBePgWldWYmHbIGVQCf3YJOgFKgeAQQalDJWkMFwtz9RNxjDF4i27diQNKEK7UjwT7iut+Nkk5Tle2E6TWG/Afu3ZZNkYxPfuPNGotkXCME0741VeQQ1cREQkLggX51dcs7XwEsVukZkCs/ZCsoOwdupU6XfI7BJ1v3a89aDIQosgZgAd+0KvEqx5AkFT7teB41sn+FYtAxOlqcOZhWV5YMXjLr8u3qQCJwMry8AwskIwSHzixyZaUW3kTupmDaonY9px15Jc5PuQW6tGOEMU5DE61+9jRpCAraJOgRoDmdACulcNdtOzLGi2zx7jkA2SgUciRrihcg6J0daAP6bjPpnULE3cLCAjRxEUvoRul4nA4GCMiargq4HJD1joC9iU1VsSVULlVtX6WxTvk7XueOMgVlZF8BQXJ8KB5A9x+d6+PNVP8AXG5WPH3yl/PaZUIJ89xlRRoMSPdv5Hgk6GtVaB/OrQVTKmlKaUppSmlKaUppSmlKaUrghQhIV+UVFRU/70pVQ76yeWYPh/qizTFrtl+MmRYxjOSOymycRW3bKibafkNi0LymDz0LwPtkjRIgGraCjpvJT71m6QupeqLzK44xl7gWlywYganEMcWiz+QJFj2DGVCkeQwZhXoT+zblLm46KsULBhYXN7a8CQeVstwXA14K6EzANpwfy8l1qtWW028e0uJo1HlYvbWsiGTYpKhpFaYltoHl8gE25w0raoiuA4bfYWvheCXmDrjpPOX0rPLe28aSKdxSyFu0QdFG2AXEh8hVB4kgFiV1U/5vvzhhBOIeQHb0h3yZfI+/gf8AEnQB+RvQqQN3v1RZa27Eo8jxzbaGMdGkfvhkG+jfVFIW2q6JOfN0x4JSecbFHDTuaCqEmAuekprW6VrpJLxVdm7dko0SP+DMxAI2T4KsOXn5A3irTGyWsYkNnNfyMwJJkXYPyD+I6rob2G2SB8BtaqH24tvT1+TY41Vbo1OXBkU8YLRwqO7iPuTm+ySRleYZAA0C8f5PchcRSIiVG+RkzovCmb6iNMVOi2cYnaSWeABEdgERFJQlyG2yjiPyjeytdPL5+5tYBHdwCw77NHHHsSEgKzA8o98V1oAsvHYJBIDVY/8Ao9BX32QUM9FUpVbVX7shhIrrA+eLGEIsoTIiVGXQdbdAHhB9xXRc6dURdWU9PMUtnmJGK+1YGkj9rL4MY1zJJBZST40CDrxoHVNfWvKPdY8gcQslykYIkSUeGZmCkaOtaBIJU6Om+DVkBPhET+tTjVYqaUppSmlKaUppSmlKaUppSmlKqjf6g70y7uSM8wT1R7f7VXO4eAVWAji25DmLwJ15NoLWnsrORW3GS0sBqXPbxyTUzokULmFEWNBerXm7R6IBR3nor9QOm7rLzRTQ8ooXgSKW5iXuPDJHKSC67BVWifQfTICpVgDpmtN+z96h4zpq0vcRfTILpr57i1t5pVgS7t54FV4oXZSskkVxGHaF2EjrJyhD+8LWK2b3So6y4m/dMbdubN9Q8ddXE1YLXP8ARW3lgxXGVRYzpk2sdia8j7LnIiaEqKkP53pKaWKBbfIwW0CMyvNcN2jOCx491435F1BYuY1C6ADrpatZjevYLpZEuLGZrja/hW0Rn4HQIKqyq0a6A0sr8tBzt9A10mT7lZrmlurB1tTGjstOOHEoIjbDyjFjum7JmEzHN2IQnyrrYK2z5UEGzZXr3yY6H6exkHcN25dynGW/lUhTIyhYokPEShwNROSzcmDgEDxgbX1Azt3cPBHZq45ycLezgkL9tFfnNcOy8YOyPfLpgSqhRok7yXabHQsLRjKgsK2395IhLEOS+UW+q0hzEclBTRrB9GGSkoZRnHpMeQxPZUyBpwHQEu895jsYf9JeIQNGCxWGEyq4fiVMjW6MT8bdiQsRBVm9p44DIWmTy6yZaG5EyyDhud+2UMRkjZQJmVQCXYqUKlxxIGj5u9/SL2Hy/B8Rl5/kmJO4vT21ClbjqWjMmFbWTjsyO5Ism4UkGn/t6xY6tty5DLYSnZBLEFWgMklPo7G3CSTZKdZFSaERwGQcSeT83dEIJKsPPcbW+XFQ4UualeqWYsZ3tsTZ3UdxNazF7025WSJWVSqRvKNgzKSQY0LBAPc3Jgq7qdSBUP00pTSlNKU0pTSlNKU0pTSlNKV4kIl/yTn8p/P4X8ov9ov8ovwumt/5/n9f1p81DDdT6dvog3ptpF/uN6X9nbzIJjpSJ2QRcTjY1f2MgzUzk2V3iTlDZ2MpSXskqdKkSEXhfJ8JrFXmDxF//u8daz+D+aIAnfzspx2D997racR1v1bgQVxHUGTslOvalyzxjQ0Pw5RIvgeBoDQ3r9K+FF9GD6aJnyXpYxVW/IT3tv8Adu5SREcMu5l7YcyEF7F+oufki4UlVURdY1ujemmcucRbM2gPcZCoA+FC8tKAPAAOtb2Dsis8vq76kKoRerL9VBJHBLdW5EaLEiLRYjeyQfJ2NHREj9n/AEGejfYaRHnbUem3aHEbSG6L8O6j4fAtL6E8HCo7Dv8AIEt7qI7yiKTsWcy4XUexL1TWSs8JibA8rTHWcDePckKlhr407bYH4OwRs7J8mtdynWXVeaVkyvUGUvUYENHJdyrE4I0Q0UbJGw/6spHxUtkFEXlE+fx/8/rWV8foP7DZ/mfk/wBa1kAD4/8Azx+g+B/SudK5ppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSuCVURVROV/hF+EVf4RV+eOf74Xj88L+NP88/5/wDf8jXBOgTonQ3oa3/Tfjf8yAf1HzUHI3q5yakhZi5m+ye5J2VHLt5FRAwzD7y1iy6mvm/bWo7lnKRPfWRy0SV5oUGOxKpH2bWFDcBHWQ1VeoriJbg3eKvecXeaNba3mkR0icx8e6QQ0hYctKo3Ht1VipU2Pm9C8Pkrjp5em/Ufo9bPJrjra9u8/n8bZTQXl7ALw3H0UP8AtbJbdhAyzXdw1vk0lsLm6VgJD9s2n39xndaFAdrqvIq6dMtcipjYk0dmcBqXjDrsewfO5bjfb4kSQ+w6EBqwdiWfdAh2FfAs0dhNZTHZeDIKpSKdGMk8Z5Qydvdu/bd+5xChHb92H4Sb9skaOCgjjrj0zzPQ91NFe3mJuoI7HF5FWgyVn9WYMxGk9rD9AZvqZp4YZYWupLSO4suL961urm1K3Df/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEEAwEBAAAAAAAAAAAAAAgFBgcJAgQKAwH/xAAzEAACAgEDAwMDAwMEAgMAAAACAwEEBQAGEQcSIQgTMRQiQRUyUQlxgSMzYXIkQlKCof/EAB0BAQABBQEBAQAAAAAAAAAAAAAGAgMEBQcBCQj/xAA2EQACAgICAQIEBAUDAwUAAAABAgMRAAQSIQUxQQYTIlEUMmFxByNCgZFSobEVM/AWJMHR8f/aAAwDAQACEQMRAD8A9/GmMaYxpjGmMaYxpjGmMaYxpjGmMaYxpjGmMaYxpjGmMaYxpjGmMaYxpjPwiEYkimBGPMyUxERH8zM+I0xnVZfpKjuZbqrHz9x2FDHPzxzJx+OZ/wAapZgoskAUeyQPT9/9z7e+egE+gvOwtgNAWLMWAUciYFBCUfzBRMxMf2nXoNgEVRF9Gx/keueEV0c569xjTGNMY0xjTGNMY0xjTGNMY0xlGz+exe2cTczWYtBUo0l97WFHcZFMxAJSuJgnPaUwClB9xlMfEczGLubcGjrS7Wy4jhhXkxqyfsqrYLOx6VR2SfteXteCXZmjghUvJI1KPYfdmPsqgEk+wBPscjFe9Rm4gL6/FbMpXMO6Riop+UcjKME4IhY6YQVYCEVlJ10BYme4ZFv2nGo9u+a8rrpFsQ+Mj2IJUDiP55XZUHsl6HAcRVhOYPqGABGbjW8XpSs8U268MqOyF/lBoiR6ADkHJJ6BJUdE+lZU8t1VPddSgmMXexCJqqtZSq99NivecUwlfvA5bWI4gTX7qEiwjHwRxxF5/KPsxR8tdoWZA0sJmjJFsAAJFairGxYABNUa7FA8cIHb+cktvwiaNJCzEA8rVl+kj0IUsy0S1CjmP4z2VVlyBB12qMmezTqsBPalftxI3huJaIWZE5PvUYLZAdgSJzMFch3o2/lNFIkgJJDGItVeq2wtWBBo3YF8u7yxJpyJcoZZENCzzvlQIsgHv0o8uN3/AGr1/wBQXTjo4e3j6lb729suvunLKwuLo5rJK9/L5B3ZEoxVGrDrVuzXlqjYVWscCs49+Qhgc63ynxX8P/DIgm8t5WLx0OzMsKrs8maWR6/7MMIllJW1BKx8ADTE9XuvBfB3xP8AFf4yPwPhd3yz+P1m29l9SPkmrApoybE0hjhRWpgOTh2I+n0JEh1dTNn2BW5GSY2qz2+219BeWjlvPbBE9CTGYjjuj25kZnifMTGpAPLaX0n530MARJ8twpsX7gMLFn8tD3OR8+N3QzJ8m3QsGjDIXBUkN0GII6sEEg/ejeXpSvVMjXC1SsKsoZH2tScGHMccjMx+0o54kSiCifmI1nxyxyqrxuro3aspsH+4/wCD3mG6PGxR1KMPVWFEX+h/3+3vna1cynGmMaYxpjGmMaYxpjPk4zWlrFrlzAWwwVEwMsMQIhXEz4iTKIGJn4mefxpjIBdQcp1K33tvNRg8hga2722qwYuvulNs8Pt5I5RC8oxeFrktl28nDBeRQg3LI8kxTLD/AGAYDIr8RJuTRmKKOB1UqUM4PHthzkQCy8nyuQjC0C1E+gyR+Afx0O0j+QO1+GKv80apRJm4qwiQSSWscbzmNpX4vUKuqozkDOz1Aw2Ov7YvVF23Yuq+qVUsoiwmu3HVo7VheCy8Qr1b9YRD2rjRAVOH3O2J1g7W/CdXjLOsGvCwkaRmWNUjjosJGdlEatQEjWAQSLonL2nrv+MUrrmeeUsiRBXkMkjhuLIiBmkZPzpHTE9dWoORmznphsbu2pvbG1eo++MBa38OCxw5bE5R7LeN2xtVuMr4rEUZyL7SGWrWIx1mrZyMSiy2cnYdXapi65DHZPDy7Q3NuDfnjm8kCvzQVMa6yuESKJCWiU/KV1EkdNUnNWJVMnmh8ZxeGn8HDJ4Xx+3rfDsc6/h9iMCTZ29tJzPPsTJGJTWxMsqxFSEMAVw3KS80bfw2P2myliqNZ9fD4euulRossW7Nj6ZH7Rs5LIus5G6+Z5k3OeRFM8kRlPOtrrrBoxQ6mrC4h1o1iQTtIzfLj77aV5JJGY2zSOSzk/UaoZD93b2fKT7G5uSI+ztyyT7DxQwwoZJe2McMCRQRJ7IkcahVAX2yv5HA9I9w7u2lvvc3T7CZndOw7F+1s7NZqhTyr9tW8lWVVvWMTD0yVOy1KUz7w97lmpbVkLQE4uzw+K29nT3dzxensbOiWbV2ZIFkm12kUB/lswJTpQeRBKn/ALZXKtTynnfG6PkvF+P815DT8d5eOKLyenrzyQQ70cTFoo9hI2AkReTADrktq9rkkcfawGcVVa2MepNoZWv25Wh0HxAmJQQqYEgXAnBqaqRnv5IZ1vI2g2FRjxdZFIIKgOvRFH04gVXdK3XI9ZHis8QPDmCjAmiWQC79Lolj2Dd1X3OX2q7j8bUTQ24M2G1OyWhU4bW7YnhqXGr7DccDMR7c8q7e+WLj7S2OoIYSsOsLRepeB5Rx8bBN+haxRVeh6k+2YewZpCZZ2HIgcSwp3F9ddnq6NkV0O+sv0ZkhEpGRmRiZEv3DMxE9pfPmPifM+dbPMXOWmMaYxpjGmMaYxpjGmMjH1hqVa+6cVMVa8Bk8XYayRUK2Faq2YE2w1fY0WGtoQZwU90DElzPHOv2mdZUH0lHRhwdeQ5KbseoBIv2JI6NDM/VXlG7EG0ZQGBNgEdKfbiKsCqv9fXBuc2Nt3qBir+C3PgsPunAsOBfis0TCTY7CmRI1xI+5K5j7ZI+YLgomC4nUc24fF+S15tXd8drbMEjFJYJlRon4MVPJWoEXZCkcehQ9K3njvI+U8LtxbvjfI7ejuRdx7Gs1SRBhTBWqq9iKI6/TKyG5429RViH4unjKOKqopUYru/0wp01ClCz5a2TlSlgAm0ZZ2xHLCnnVIm09VEiSJo440WKOOEhQsaKFQUTbBVAAJvvskmybTrPtTS7EkrTTTu0s0kq/W8shLO5Kce3YljR7skgXeQv6z+tLoF02ztavvDqzsLAXK+RRSy1bLboxVKaCnDLSi8ohA1tJRBAKgvqilqz47Y5nBnn0pXLIsjSc40cmWOkH5iGBquSm/wCo9rSgEkSLx3gfLbEEj/gpvkGJnhkXXmJmcHgBGxBDgNVsfoVQ31WQDf3Rj1PdAOugXLXSvfmB39Xx9kK139Hy6rJVXH3SqXqAFMhbOChTu2VMECgTKRIYtp5DxcDtE0kjMtWjSRWByKp0qh2UkEBvc+lnMPyHgvO6CwNtaT6qzL/Kk+UQjqAGZQ7OVDKKLLfJRVqARkxqmJjL2aUPwWIaFdamU2XbNy1AicSQLmrXFEeCOTIitGMjMBC4mJmN9r7GpLGgXUBYfl5noVdA9cuJP2v9QTkfc7EAb/3MqlyUYIFW6oO3ZNn+kdevd13knNt0VUqYIXXq1h7IKU1a8KD7pnyyY7pI54ifuKZmPM8/MSDW/L0kcYoUqKFA9Pt/95p5GLNZLN2RydiSaP2NUfQEe1Gj97l1k5bxpjGmMaYxpjGmMaYxpjI0epc6OA23iOoGRfNbH7Pt3GZNseIDHX6Zw6w0pkRhNQ6w2HSc9sCMHPEj3Dh7aclU3xom2JoAAcib9rojv/jM7RZyzwIpczhVVQLPIMCOI/1H8oN+/v6GNdTcaLlellsPfRdx2RQNyrcpuXYrW6lmfcQ5LksNbQJRRMGtkjM/E+OdRLbjePokWrMxCmkIZuSMpFggg/rY+91m/TgSQyujAFeLAhlZBxYMGA75DsGj0T6HqkbsMsvi71YLLKrrVV6QtKgCbXa1ZiNhYtiVmxRzDFgYyBEEQQzHdE4DtVMwuvQC+z3V999+x6FE5kRL8shiOVMGKMTxIU3RrsE9qfQrdj6gDmhfev8AT8Zu/OZDb3VPKUN37ZTmhyOEyeSUktwZ8m82btzOChK4dfbbNxH7ZSkUkMDKQgEhTL5LwvjooIZFBmnYldeQrz2JwCZGToyShieTEDiiiugBk51/L+Z345JNcFBFGEleMFNfVjBCwxqCAkQCARoFsv8AmrkWJ2Sel7oPsTo3FHEbPwlPGzZmrXtProBLGLrRA11TIDHCVd7IWrmRXJSXBSUzOtnmXd2FcxJHZAXgvEqpIpT1ZC+w/pPp7ZoNra23BXY2JJViEhUOxZQ5I5cRdWaBZwO6A6oZtu2sLStR3xxASK4jjiJAOQjiZ5jjjiY/EfjxPEybx5agGuhzUXYHFfQ90VPp6e9n1HUN2qZgA3r2bPpZroA+5Ht3f9skJihkUFMxMclHEz+RgYiOPzxxEfmY/wDjEREaluqP5fL/AFHr36AA9bN93mlfo19u/t2e/wD8ujWVTWTlGNMY0xjTGNMY0xjTGNMZinrXjEZbpznKtpK7FfmkVhDgBiXVztqr2FtWyCBizrvaBrOJAxmRKJiZibGyaiZ6B4EMAfTogHl7FeJPIGwRYIrL+uSJV43ZsCvzAgWCCCCCCAbBBFeozWDtFNnB4SrioxlTCqxrLFavjcZXClQqpQ9q1rq1FCClV5CIJYAuBCCjiJHmZ0m3Cs0UbsqwvwVeEYpEAIAQBSo40KU16ewHWb1pOOw4WVtgM3PnISzOXUFizlu2vlyBJJa+7zne3dYtXm4iiahvUVpt20WVCUWMcw5W5iDHtKGq8FPHd93bBD2z403yYpHm1jIwlCB0LR2KLcAQfpWuVBqN9g0c2QjaGGHdkRJIHkaMBHKlJAvIfMWuQ+/2YBip6IzAmC3FuncWf3c7NbUo7fp4zM/p2277LaclfzePTBSy7aED7McNlsxCqgfctXZBMlnfAx/ynh10diPYLQy7cqnlK0QdkWyBGH5E0QotRSigCLHLJHH5HXn044IZdgpwJlhRmihSS/VVWzIVuw8llmN8QKqjdW/U5s3027Zq7o3e6sVzIXlYrbODxyhLJ53LvGCRTpLMjOO1cG6y8ggKyhI3TE9sTaVk14Dt7UnCEMqIscamWWU1UUYNfVX1ktYCk3RoGvxfgtv4i3vwGgGPGP52zPsO34fV1xXKSZloDulQA82YgAHupw+l3r/Z6mXdmU8hXBeR3ZhGbnp1FPiwC8IoUd1uXDxBrBrlI93sGCacDzBfbqb6Sa5ghclhJsQmeJGYMxjUgScQDVKGW2PVGx9shvl9CTS2NtI2+ZFo7I055eHFVmZmVVJuuTFW4r9hyuu82eVf9mP+x8eOOYgpGJ/zEf8AH9onxqSQ9RIAKFGv2snIs3qb+59f+c7GrueY0xjTGNMY0xjTGNMY0xlndQa82tlbnREczOHtsH/ugIeH5j4JcTP9tWdkXBKD6cG/27y7AeM8Rq6kX/c1/wDOa2Mt7Z2GFExHJyfHHMcl5+OPzH8/xz/ePTy8lSrJoe93xHp72CSQPb6ff23SIyOWIJomrH9rPRF0O/W/2yMvXy1n9k9I+r++NquDFZ/AdNN+5bB5UF07Vihfxe32vxVhwWlH9VAtQyy1RzK/qPbZZiRVMFr9uQx6uxMth1hkZGA6V+JIsV3Xvf710Dk7/hz4vW898efB3hPIxjZ0PK/E/htDb1+bIs2vtbkcckZdTaiRXZCRTU7BSGKnPMHl/VX13xewen2/sJ6gOot/c+czW0/dx2S3risnTPIXskdTJ0shhhwaK5jTXjMtZuC2qis2talINCaqzKFbW3M8KyjbldjwA5MG+ot2tH0oB/UBQCRZYAH6gN/BX4J/9SfEPgtj+Hnw9F4nQ0/KzJLp+LfX2F14dQPryRbI2BKzM08XyZBK7q8aswPNwPSm3optLq5VwFjfO2sVuJyUosj+srRaiqd1YMtFUVPEVWgohXyMRPciOSmYEjkWvsawjEWxBHKqsTTpary9wQRR6v2ojo1Yz5XbG15Hx23snxmxs6oMssY+U1MwWVjGJQgphQHIGwwsVQ62O+m3pZhNo5WzuCpj1/WvxtLA1rzFCDUYfHMNycdj1xxFXHQ4yewRAPqrEC0+RBc63ejOdnZkn+QI4kiTWgaQESPDGbKqgH0Q2SwJC82+r8nEGPeSeRNWLXecySGWTcnRCSgmmURiSRvR5yilSOTCNKABJJE+K/8Asr8zPIRPMzzPnz8/x58fxHjUriFRoPsPtWRf9s+2rmMaYxpjGmMaYxpjGmMaYyl5utNzDZWnHP8A5WNv1vEcz/rVHLjj/mJKOP8AnjVEi8kdT/UrDv8AUEZUh4ujfZlP+CDmpC7asKL6W0YleqRCXmPITYAJla7Xt+ICWjHDYmO2GwyBnxEag2zI8S8Ga2HIcxajiG6av1I7A6Fkgn3maQpIxZARGaIU0eJqyl+p4tdV2Uq/qvMHepI8he9P/WHH0qTchYv9MN90wrV+SeX1O18qAwsYiGsOCmOxYQbTLgQiSKInB3dh/wABsVE0jGIxlVYClZCWcE0DwFkjtmojrJ7/AAt/Dan8Svgban2E14tb4q+H9l5JSY0UQ+U1mbk5+mMECvmMQqjtiFBryCjtLbNzBdGq1Hb1Bm9bnUHpXhctONymcfk6iFbgoMHIW9t+9+mVYyqcnZrMYgH/AEpNWbKtS1mbJKgs88LwqqAfMcxig7WG5juj62LZaoAk2exn2S3fPbreV+M5n8k48NB4P4m3dQbGrqxQbHLxmwhhi8iQNh/wra6ErKY1mUFFmnECLntT6ekqPZXMcxELiI8zxA8RxxxMz3fiY44nn8czrfwMQ9E3TL9JFkdXyK13QI+4/wAAH4nb31tIRSkM/wBRNEjkSbJo9mxZ/X09TsT6brH6WvMTEiIfuiYEeO3jmJmP7R+ePP8APiX+ONmOyTZJBskGyD17Uf2qv17yGboALAet9USQQPQk+/VWD6el5IRQ9qlj4+0Bjx8eBiP8/wB/z86mq/lX9h/xkfPZP7n/ABfXuc+mvcY0xjTGNMY0xjTGNMY0xn5Px/eYj/EzET/+a8Pp/cf8+n9/THpmoHfUqobgyqJGIfWyGRqskYju4r3HxATE9swA8Tx3fHM8T+Z535CX+bIjCiryA3fVMeh1RX7X0Oz+hnmohMSv2QyoewTQKD7XTAV6UbHYORs3lgOp+4Mq3cHTjqJhcdVigvGuwG5quUyWBTaopzNa2SaeJeFNz7123RbbvZJF+xS/SvpsfW7nJtUsZJmVSj0VK9BiAv1LRscSSeyPUAWQVN5sIlSIqxSQU3IMgCyL30xZ6bodhCO7vkBYOvje1rqz05328c9t/oLjmxjlPxO/cTtKhipt5y9naA26ILlx7ip5GrgP1Qq9hXs0rFklMt2ZYsFNinldrxXjXWaWKGF5JOFmMBnYhvotRVsf6um42RxI66z4if4k8/oSaUXlPM7OosNy60vkdySD5cagASRNKYJAALVXRkFVXGgZ5ekSp1rYh7Oq2/Nl7pw1jCYynt2NrYzIVc0q3DDZeyucyV5KZvOsqauqj2omDiqu2xaXPsBO01ZY5Qs0f0h/r5q4LFZLboWSFB/KGIUDrifbm/l4Pw2w0PBzIjqXVgChMYC1ZCiywIeqJ9iLObj+jqMlXxFVGVtqyNlfC4toRFX6hcl2LNtbvNa3SEhDexntGzkxgBKBGV+IZgIVlcSyA9ssfBW9lpQeiR2wBI5CwKJyE+XMLSyvBE2vEfqSN5PmGKxbKJOKlk53w5KCqkL6izJjU5HoP2GRjGvcY0xjTGNMY0xjTGNMY0xjT/z/ABjNLvqFyC8P1R3xjyKFmG48jYFfEQXZeOLyZ8yPAEu1BjMcyUft8lGuUfEEnyd7bQFQPnOwDWb5NzoURxq6A+1frXU/h6AzaGvJXXykUN0QONhjTAhugAR97zH2BzSzVIiY8TBTPb9vPdAxMkPEdv3TxMlHxyUxxPjSrtMxJLgsQByUkevS0pPf2NCx2fY3tptQf6SBX1BgeiOr5168RfZF+neYD3COC3zetXc5s+9jm47J3KSFZ6rSXZujQfKVZGqCW3w+jv8AMPpPJq2MqkMsUphEscDelhnTlNFG4UlR81eTfSQLF8ieTEdigVPVAEDfaTbvjQIdbbJWSNHZteV+C/MW/lll+WOcfEq6jlxcFb9zIfpG2pROtVqVwqoXIkKwkyIZiRiPtLx+yYCI4gRjzHxGqNTZtgA3FFAX6TQCj0pLFiiFAPub9c1XlIncPK5LyM3ZIokdH6iSfq9WJ9SxIPRzaJ0lthYCjCy74NqhniBnns4MueSiftgeS4ieIjnieIHXQvCH5k8CN6Bl9CPYBvX0NgA9e116ZzryyhYpXFG1YXVGz9NH29CaIsn0++SU10HIljTGNMY0xjTGNMY0xjTGNMY0xnn0/qUb8x2weuO5LmWs1MFiQ2js/M2sjcsRUruGzWyFV9r3mDC+9X6aCDiSKT7Fx9vMDPIfjqGQeTUQAq88EZFD8zD6CQSQqknqz9wAbztP8Pfly+J4y/V8rZ2FFWSA3GSuPZI+oD6R1d/pkHenPqg6dZ6vhmYzf+HevP220sKS7ZSOUuVYMLNWqyBkDs12AUe3LAIGQYQJSPAwj8P5WJHdtabhDxLMi9BSK5Me+rPdH3oDJnONHmFEsLEKbDUCt0R9JAB6FEFR1QBF5euV6uYiw1x089iLf0zYQTa2QSQLfEfct0QMgLBGYhgzIn3R3jM+S1qdrb2Ndz82ORXIDA0FuxQtWAsAdEizYF+ozL19OCdPoYMtEMCpagCW+lrsWTaL11f6ZmnpP1HpstKSVtRwzsNjUA81RBmIR3OgRrCwymJgJdBlHBeYmJ1VqbE8hDBQEZqYAjlfrfAegB6u6u7HqcwvIakJBX6iwQgFgEHuR+YgmwBQAsHNwfpytAN5dKYYMPHK5NAPsDYewOyr7r+2PNaup9gq6FdxjA8TB/f2x2P4RZptlXdhIVgdwD/Q1JHVV1xAoHv1BAF5xv4lHCGkFKJVjJ7A65kVfqzcSzX37VQyZmujZCcaYxpjGmMaYxpjGmMaYxpjGmM0If1mf6fHqE9Th7E61+nBGD6kbk6e4kcPuv0+7szYbbx+/wDE0cu7M43N7Uz1tqMSjdmM+syFCxgs/ao4jOUmU31r9XK41dfJR7zfgo/LBHZykkSlRQUclsuqksQCA/E03XV5MvhP4pk+HzPDQEe0w/mE38o/kYgUSpKX9a2VsgqQbHl7ym8sl6dt7Y+z6gvRz6rukGa2qNxFfDZ7YuUbtOobrhZD9ZoZdtUNrtY0XOheRrZMps1/bN6fchbZhu94Xz4hXX+brNEwJekkWTlyoKPzBeS9gAsAbYN3xzoWj5bwm1JNLHMObFU5yOoBjVbJAYhgivdmg4FAoQbzH+4/Xf6Z8k9VDbWG33Qyz228m5dKaFME5sjZI2rOPxeZsvs22g0gFxV7CYIiN6/ckeY0/wAN+cVmkkbWkCgxrG/OQsD6C3iINEdlgG6PCvffxeV8e6LBGzgSOOUqyRIBGAPUl0AWuzxN0R2SRkz+h/qx6m73o4LZXp39J/qb6tbqvImnUdjthbjr4iigolLciW6spQbiSbCiO2Fi9aQsJ5YQkIyoafE/B3l13pJpyixFxxEKOWa2YlR9JXgCSSCR6VSihlnzPn/DmFB8+NCnbGWWEsvEAUeLM1MBQNMxu1us9c3oX6S9dto7ZZvT1Bjj8JvLMYOhg6Oy6Nmpk7eFxFVqrQ29xZaixuObn7rFBNipiiGpW5aT4Gwz6Wp1P4e8NJ4xZJJWT5kihAFH1hA7MTJ2VDP19KdAHvsZx74n8vo77xQeOEpgjdpZJH+lGlZePGFaV/lopK85QXY+lKSWn9qT5E8aYxpjGmMaYxpjGmMaYxpjGmMfPzpjOu6pWsqNFhCnoZHBocsHJKI8xEpaJqmInz+z50xluhsXZYO+oDaW2QsTPdLw2/hhdJfPd7sUYPnnzz3c68ofYf4yosxFFmI+xJIy5FV0oWKkqBSgiYFShFShifmIUuBXEf8A117lOfb4+NMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGcTk4EpCII4jkRIpAZL/ANYIoE5EZniCKAORGZmBKY7Z8N+3/nX7H3r2P7YFWLJAsWQLNe9AkWa9BY796yDtD1JdY8TjtxL3b0P3BczFfJ7lThbW38JnKmCVQqvENsOykOs7gy1tGSq28ZeyORxlVB1E2LSf0ZFvH2UDFI/N+TjSb8T4qV5BLOsRijmjhC8+OsZCzbMsiOGhaWWONDEruTAODAfo3Z/hH8Ab214lvB/xI8XraEuh4abyUPlPJ+N2fJybU6H/AK3Bo/Kg8T4/W2NKfX39XT0dzYlXZkg1p/8AqL627A7Zu6QddMT1bwG185R23uzDhujHZC9Xi/g8iVCkeJuWcZkKWQzEVV4+teVlMdk6aa0tZ9VFKXoawLCYLbeM8tF5KGCZIdiL56SOokicKny2KOkj8eCyCRHRVvvj73nOfj3+G3kPgPyvm/G7Xl/CeQPhNrS15TqeR1PxG0nkYk2tPa0dH57bWxqPo7OltSzfKR4BtKs0aGN6/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAIDAAMBAQAAAAAAAAAAAAYJBwgKAgQFAQP/xAA3EAABBAEEAAMHAgUCBwAAAAACAQMEBQYABxESCBMhCRQiMTZ2tRVBChcjMlEWcUJhgZGhsfD/xAAdAQEAAgIDAQEAAAAAAAAAAAAABwgFBgMECQEC/8QAOREAAgEEAgEDAgQDBgUFAAAAAQIDAAQFERIhBgcTMSJBFDJRYQgVIyRCcYGh8DNSYnLhgpGSscH/2gAMAwEAAhEDEQA/AO/jSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKVFc6+isv+18h/DzdKVKtKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pUVzr6Ky/7XyH8PN0pUq0pTSlNKU0pTSlfHschoqcgC2t62sJ1FVoZ82PEJ1EXqpNg+4BGKF8PcRUefTnnXQu8pjbAqL2/s7MsdKLq5ity2jrYErKSP8Aq1x7HddiC0uroMba1uJwn5zDBLIF/TZRCO/t3X9xt6s1bQLCGavA44ygSmDV5tkRN5xpBcUnG2QMTecBFBlskN0gBeddiO6tpQhiuIJRIC0ZjljcOFALFeLHkACCWG1AOya42ilTkHikUoVVg0bqVLb4g7UaLaPEHs/bdUPZ5/EKeDfGN68j2pxNq43Oo8bkfpUzcPDZaya876uvJVNlcVrGpFSzdv0eLJG/UpmWwnJtLMqz/UYhOxA7lFud9V8dh7u4tobGS9ih4It9JdpZWk8/umOe3iZ4JJXaNFMsUkUcqT64oR+Y2MxH8M3muRwdjk7y5tcVf5CMXUOHuIvdnFhNbx3FncPdQ3BtYprhpPYaxuWguLeReEoWRglZz9n37WHBvGLjm7ljmNZi+D2m3e5t1QU64He3m5OL5JtyaimKZuF+zQV8po5b7NhXXPNU1TxbJgI0GfJc84G8hjfUrE3FvLPlbe8xHtzSKBJbTXMf4dV2tw8lqk3CJhsrI6oHQBwihio1Pzr0fyXi15jIMTeLm4b3GRXFwziGxuLXI9/iLFoZZuLMilHREkkcDnzYhQxtPxHcDCs9hlPw3J6fI4raiLjlXLCQTKknIo+ynDzCr+yOtgv7fP01uGH8hwnkEBuMLlLLJQrx5PaTrLx5Da81GnTkPjkoBIIGyDUWZLE5PDyiDJ2NzZSn8q3ETJy7H5WI4N8g9MTrv4qYazNY6mlKaUppSornX0Vl/wBr5D+Hm6UqVaUppSmlK8TMGwNxwhAAEjMzJBARFFIiIl9BERRVIl9ERFVfRNfCQASfgAk76GgN9n7U+fitRN3PE5WUdNdV2BPx5mUiCxoMqUw9JjxVcXy3LVmC0KJOGGKq9FYkONtynxBHm/dUcIoB9VvXnxjwGzusfa30Nz5S/tW1nYKDIILm6UmKS4I3GnBAZVjfkxPD3Y0VtGR/D/T3I5+4tbq8he3w3JnnnLcGkSLZMcZ0WAkYcWkAGkJKNzK6rRnV0q3avbbM87zhq6t5UF22u5UlQy+5AXmX/cKOI5WzWK9smgabAIkdI7Uc+jINKSJqneS8vjjtcvf+e+U5G0uM8tk7Ti5j/mK20d0kskOPiMTBWKhIQyB2WKRhw0dCeLOKGGe0t/H8HjrqDHi4jjt5IWXHpK8TIJLuZJ4y5DMZOTsCZETmzAhDQFvr4Z/aLYpi++d9Z+ISxkbDSrKfiVRTP3drkd27tfZZi9ZsOx6yqh/6jrbCxYsmWbaojWMJ2WzWjFcQGUEXdr8b9TfCnzHjt7iYLloo1uMWcnci7tlRp4mSOOdJ7kRx28jxxtJK0KbkcljtVSpiwl143kX/AJbdYuBc5cexkbeK0t7SKK2vLWCESe1clfbuWQLMkJcSCN3WRGYn6YF4ZtnPDp4dPBXuNc7n5tVXGSbwZZk1S1mdpAfxnLceh1Ne5Fh1WKMW8W4tTCNZzSsbNyE3Dbvpax691XK2mmAXJ6j3+Zyptf5Zh0niDGeJLC7imdp4dIiyTGSNLdImcTy+4YjIwCxs6D3G2xrjNZnzXEWOHjyMFpgrKBrlbz2Z4b2a6lZ7ma6a34RqrxRmC2SUyvaqDMVElyeOe/AH4Pt3Q3Li720s7EqLbHJqSNZVd3EXFm6m/WXAr6+wlw8bg11fYVT97XVrke7YRyFGckSn7KPEbsnfeGuvaeTXl7jo7CVriO4siIHnvbhFtlgEatLBdPJK4u2RVEDSxcJwAsaXCOrmsJ6hZrxvDw32FjguxkGlYXtnbrN7oulllkjlWd/ch4JLL78QVWQAcDG8Y4G9qm3Va2i3Lg5NRVT0OY+Izb+nq7A3MYnEwJRLFcWVx7zGIc6McaZbUE2ORxpjZzIL6I+cgsbD6v4/wvzLE5zA4a6WzupnfyKwsryNbBzbqY7m4ww5EiG5hZJryzliMcVwnuxGPmzCCJPELjybxy8x97fQTtDyjx15cQavbcSt7tumUUKFeSGVHS3vIpQZIiyyhtKhs82t8SmK7gzoVFJYerLmbEGVFeQHzp5iGocMsTnxBPe+HENYwlIJGhN5TRoVVL3+I+pPjHmQhjxVxOLuW1W7FtcQPGTGwUkQz/VBcOAxfhDI7hFZmVeLarbnfD81gFkmu4YntknMBnhlDcWO+JkhOpokJATlIgQOyoGYkb2U1v8AWrU0pTSlRXOvorL/ALXyH8PN0pUq0pTSlNKV602IzPhyoMjsrEyM/FeQC6krUho2XEEk9RLoZcL+y8Lr8ugkR0bfF1ZTro6YEHR+x76P2NfVJVlYa2pBG/jYO+/2qsreXZhMMt5c+iv66JbvRo0lt28gOTK6WLQusRCfabeaKOaEPWX5Dwg44qOJ3IlQaKeu/o/g7zPzZqy8lsvHPIblILxbjNY6TIYid15RJM4SaOSzl1GqzPG/FiquY2JbdifT7y+4lx0OPu8XcZGwgMkIWyuEt7yIHizojOjxyg8g0QkTkOwrEDjVQ+927fi2g5vHg7S4jsrntc1OVzNspmbiQ58qMzX8JOp6nEG59FOjuo2yccXnHXibnSgE0YZjuOuwDZ/w4+ZZR8p5H5h5FYeV3l+Yzi18Xv40iSAQxw2fGLJtbRW9spVpWt4wFjTmwaRmJqwGDuvTlrMW9/J5NgHClbWC5wsghZpDt7m4uYorp59FwCYlVWVQVYdKYBie7niK38y3c7Yzefw5WWK7EZ/gdvXVeU1Kw7Cyxi5WK65EsJVlDt536t3lNRXYJMxmHGbII6w1FjzBHN5X0ozXiHhhvLbD5jJZe3jaY46CCO4/Ezr9R/DrbPKSGkAVAheR15Ar2CPtynimJyOLzXjvltpd5LE3ttJIbqSW2jvIjKqSW5gkt4vww9suGDPIOHLm+0UnWjI/A1mcTwhUG0tvi1jn9oviDvL2VBHH6FcxqdsnL2L7pJjXZE2EiTHjpcXVZWraI4crKLFsYySIbXHdt/I/MrfxrHxP4rn4LmbHSTR42zwWTmFpnUWBfbyMy2wubfGKv4iKKNPche4b8S8KBpJI9vx/mWGb1Au88cjjre0TD21n7s2TVLeef2pmdIrf3WXkJDarPMYuQt4FAJBblbXthh2M4nt/huCYxjN1SwsUo66ljrcVTcWxcaZAFJH5SGjaPOOESvIhoqKnRUFAJdaBjPGfJs2d3PhPlWOuFkPvi/tLe0SeSWUyu8c097GBG0jMyluB4j6h2wqKPKczJeZrJ5O4zWIunv7iWcGyunmhjA1GirCsLMQiBVBCEE/J2dVkqRtllGQSYbRWGI45XNTGpLdjktzBOS0rJ89osCEkqQbijy30cVpFBSbPsJqBbZH6L+fZm9s/xlz414xjLa6S4imzeYsrq8j9thsQWFibgs7R8onjeVVZZCpdwXWtXi8rw+OjlZEyuSu5IzG8WNsriOOVW7CvPMIkVV6JPAnfEg8lXjvz4etlMPqnnrP9cXJ7OISSY8iHFlRaWvbkGQCxAWUavvmjaECul16Np5aITQgOr0elvgGG8cVbuPIHL38MbiG6SKSGxtYpyyvDZQzM0hJ5OnvyMziLUcYiQlWg7znyjJ5T+yyW38vtWYbhaRZLmd4uJMlyyADWwrCNQgDkluT7at3tTdUa00pTSlRXOvorL/tfIfw83SlSrSlNKU0pTSlaLeMWedI/iE9xfLhWsazp5DvIigutEL8ZDJf+FCkIXCrwSCqlwIkqVh/iIsHeHG3SIdPZXNuxUgDUcyM3MHo9ToANHonelU7mv0hRbhsnD9Jkgmtp1VuXasrK2uO+9RnZ1sEKAOwaos8UeymJbvYpOap4VXTZ29bQIldlVYqV1vCNLKLMtY5SYbjCq9Zw2XYrz7wOOdnuVMhFR1Ryy8rvfFsmLv37iS3USiSxeWRY3LRvDBLwLDaRSMsimNo15BFAHHdW88PuJbO+SLJtLJioraa5kt3X3EKoAsbR81YRorHkyx9nX1djY8fCZsnY7es5rk2QWFxJs72WFbHSdeT5rUdqE8b0pYUCW8/GgMlIMBH3ZAFzqXVBAVReXyL1HyWUtsfbNk7q3gsIeMUKzsv16VSzOdvLpelL8tfYkbNcXqDPi5Zra1xFnbgyt+NvJI4I05llKwgt2SxBLOoAC9AaLECSbt465IecdhXt3XE6XY3IcpsPJ8kv7kQGxJOwryfC9nFLlF7Ki6ijJeoXktndq1vl7ySMJIGhM7ldlmBIPIHmeX0AjRY7AHddLx6K3MTJPYWsoBHHnHtn+/HZJBH2H2GvuNiviUF/kSK1XnZy3GG2W+XpD7ovOFyoq46QudSL1QviMjTuiKnzRMfjPNfKb26cXWVuRE7rw/rzciHJIHUnHaggEsOPTA6O67eUxWLkUzx2cayciDHGiiNSF2QoKqATsjrQJ0f3Gw2CK7Ks47Dzrj5EbDbjjj5F37EPJDwSL14RU4ReUFF9V+S2E8DupL69t0lneYl4ldndmZmYj3CWBU9EgdtttHXVRvnIkhtXeOMRgCQqOIIVV/KOwQGI7+N9dVdf4e4SsYxLkqi/1DhRhJUREVGGCeLrwicovvQcr6/JEReB16VeDQ+1iEJGiUgQ6+CUiB3viO9OP1Pz2fk1N8qlD5JgG3+d9EaIDNx/1KHfQ0ejvW62A1utazTSlNKVFc6+isv+18h/DzdKVKtKU0pTSlNKVpv466B+78PeUOwYCz7WplVthWNNofvCyVkDF6Mk3w4iOhIUXREkFQRSPlATiMfVa1hm8aSaf2xFbX8JlaQgKsM0U8UhJKtodoSAPr4hfkLuSvSe/ey8xtOMjIJredG0QVPtqJU5qxCniwJAPYBJH3B5jsc36cg7ixMYhRbGxnW8iQ1PqrNYvv0a4rhFs3YMl0086UbDRBKGULDhK0yYOK72U/Mf1I8Ou7dMjkJp/ZtbGX+x3acpYpbC7k5JHIEGwAzK0RAJUSOuiCvH0Viw0GS8fhvvdhtmW35KImILIds6yRAgiJH7bg7d8gykmt666/dkVyr3WKYAiuRnHGgfaXjghVoTNSLsnoQIorxzyvouq23U10IpHhMvGJUYuyuq/IUKpfiHZuiAdHvTbI1Ud3FnFHccH9uQkdMpDjiW2CASWXYI+k7+5+d7xVcXLcmY+c9PPjgSkLJkfVeUIFIiRfU14TqI8iPIoqc8prr+P3sF9e3E18pkg5PGkMm1EbopBDdbMitxJ+EAK/BO6y4x0hgSO2MkbE6Mkakd7+Pj4P3/AF1o71uvkuz4vmxG2WRZLymyRsf6pEpEpKnxOIofsREvCr8lHqi8bhaRW898Hs4lEYlVNrGxCqqqGZdk6YktogkhieivVcRs5ooZRI7PtpAHfSd9AEgbBAPR6G9fOwRWxu1Eb3i1im4igKk0qCKdyPsvzRVEEXkl68Ii8cevPHOrQelFkJchAQjLxlXQCqC6g82dyTrj2QnWyBo97NRd5XJ7drJ9S9b0fsCAQVAXv7HZJ2PsDvVXvbPQxh7f0Ij8325EhV4VFXzJDgopKvqXwtogqq/2oPCInCJ6Y+MwLBhbJFGg0fP4/wCZiB+uwANA7/bQA1VOc7L7uVuzvZDBfnZACL18DXzs9Ds/51k7WfrE00pTSlRXOvorL/tfIfw83SlSrSlNKU0pTSlYi31ijK2tyvlEL3eNDlpyirx7rYRXFL0ReeqcqqcKioi8+nOo89VrYXXgHkkZXfGzSUfPZjuIjroj4/xH318VtfhEvs+UYlh/fmeM61v64ZB/roAn7fP6VzqZx4YcIY3P/mpX1UqPdN2cu2cbjSUGvdmy1cJ6U6x5an1dccN90EeITcLlVEUEdeXvn2Z8rlw11iJJIJ8W8ccRLwhphBER7UZbZRuIVVDEFljRVB72b3YLy+QYw4gcBzhMSzMrCZU6LqjBgqsSN8gnezvlsEfmRPDi9Fk2RSijx4tHT2l1OcYji/JjxK6IEhoiaAVkyFfrojvEfziFZBdyRVFVWIocY2dNli1VJJrye2tIkflBE81ywQDlv20RZ3QlmXQjViNltHlxdje5DJWlhYJ/aMhdxWdoZZI1UzySrDEJZSu1Riw5sx4xglmHWjo7kXiLrGamLmVlh2bQMQmyIoxLJxKHzEZsFajRXnIUezfkPKQSnvjcFUcNk2oyG+06CSLB/D9mbBLkRZDx+SciWSSGIXsaytFDzfTvbKqho4lGj0zaHRNTMvpzmFvJcVHmsXcZSyWaaS1V7xApgRmeATSWaxiRAoZpNBVV4y/FZUep3mO5FXt3BYur9H3OVaRBZbVXXHzURFsF6Ey0PVwV7vG2oADxILitO9de8Iw/80yT2Fu25i7f01BVY40HEvoqzMAwJPDZIO24cdHRXs7y8gKJHGOKF3Lkb72/6hhrYJUb+3InfW3XhD3HsdzZkp9yriQIkOUwEOUxLJ85kdwiNlxXVbbRCJBUnUQGxT0RVQkVFt34b4s+Fu8dG9yzPcsS0ZiEfExMuxy7ZlG9chr/AKtAkGFfP7aGwt5GD+6zLJ/2huLcuS70ATpQeyDv9q6S8GiJBw/Go6D06U0AlDjjqrzAvqipyvry6vb/AJ8r+/CX0xcXs46xj0F42kAIHWiYwSNf4k/v2d91SzIuJL+8cEsDcS6YnZIDkDv9NAa/bVSvXfrpU0pTSlRXOvorL/tfIfw83SlSrSlNKU0pTSlQvcaIk3A8wjqiqpY5bmKCqiSkxCekAgkioqEpMogKipwSp6prXfLrY3ni/kFsBsy4fIAfO+SW0kika+4ZAQfnetEVl8BL7GcxEnWlyVmDs6GmnROyO9Hloj7j7H4NIWYX0MIM0QMTQmiBUI0JRNRE0444IiEeO6ki9iJPVVEkHya9QM7b2uMu7fmvuMkkRDEfSxUEMqhuRI19XLYbkOm3V0cNi53vbd2VgAwkBCsd72oV99cSdgaI46OxrQrVHcjIWLPaXcuE00jr7uC5bHUl8sVbNKKcgk8akBkCL6IIqRcqnConqkCeD+UxN5b47bNNGNZ/Eo6uWUuDfQc0jGu5Cp+kaA7IDgipk8YxbWvl3jUxJVFzeKf6dNtWvoOQUa4jf2b46JOz0aRsnbzVdmdtaGwu8Sex1u+27cjtwrWOuSy0LNLBGKubWMAnVuoZsa5XlSOxIZ8ltyfIkMSq/wA70XzlxGtlkriNWDR4y/k5BuJPtWlwRonWtEA9sfqA31sm4dv/ACJPMvJbyK1yZyjWPkAma4tm/AKxxVsJLiO4Ysri7/DT8YwWXkQIF92KYCx7enYLPN4K2spsNtaKthOXJSb+bZSHmXGYcISGMxGaaivuSkkvkivKJi60LKCHwOmmqf8Ao95BisPk5M1fW1xdSpbvHaW8DoEM0p/qSyO7dhEDcQA22c746FUvvM5FZR3EUxkV3VTG0cZffIkuQyEKrfl2WO9b6Gxrf/wjbYwdrYlHikRwJclgWEmzGxJEkyVDgkaAlIhZBzsjDZFwKryqJ241arwTyC98o8ohu5kWOESe3aQISfYjJ3rZGnlJ1zOkXkOutbgzz24FxYXEwJ1wPTnvQDcixX55a7Otj4Gq6MK9hIsCFFH0GNEjR0T/AAjLINon/Trxq/sKhIo1H91EX/4qF/8AyqbSMXd3Py7sx/8AUSev2O+v2r29clfimlKaUqK519FZf9r5D+Hm6UqVaUppSmlKaUr0rKKM6vnQzRFCXEkxiRUVU6vsm0Xonz9DX0X0/wA6615Ctxa3ED6KzQTQsCN7EsTxka+/5ux1sb7FckMrQzQyqSGimikBHyDHIsm97Gvy9EffVc2O6jVhW3FkoKgMNOutqDoq20pMu9EUVBSBFUQcVeqkidU5RUU1HxA9ZbK5sMvkRGgEKSzoY2Rk5MHKq2wfo2AwIGuwPjRr0j8TmtbuxtBIGMpiRi6MHI5IrfURs6BIHZPR396wJDn4/aLeYzknvcWut6soUiwbVsQeDIRsK4WYDfY5Uh5ggIH5IRzhQnZMMZbzRSGxOIPC/C8re3Vn5JarDPNjctFeW9sqnkr4+WCaJ7kkqioZXAVC4eVBcOgJGjnMtn/5JfWUsHETWc1tdRe59SGWJ1lVHVeyrCMBtkaH33WiOc4LtFjsnAMdn7vy7vGqLIMfsamoYxr9MeF1bOLIr3rO4ckdUDIJTsceCjI0/GkNBFbrwitq1ajL+pvqDlbPL4iDwzG2sz468t5LqS/muDGslrJ+IKW4cPI3siUlSZeH0FjoqDLOM9WTkkzOTt8PBa5PIY+4hub1rx7iIpOBZiOK3MEYRo2lQQEy+4ZTI87S85C2ZbDxQjOxhu721CddOz2xdmvNMDJraN2U7PhgxZzYTkyG5LGbAkMSozL3lxe7D8x1qNIbI9M8G9PL62zFvj8/eRYmLmnBXkMVxkF9uCQfh4JjDIEeKVXhmkjR3bkEUshJiNLezyDSo0be7bxCXhIpDsA/DirkjbBl2W7Lr9S9bAsG9ni/neYvY7c55ZOz5t5k7Bw2iZCN7pCOey07FDgE89lCUybVUTo2AiKAnxjeTwjDYOy8pxWPwts0KQJEtzM8zubmUyoQ/FyQH0CJCPz8xsaHUEeqLCyx2RjLRlVt3KpHEqiHcbFRy2zFvjZOy7E777rpZT0Tj/Hp/wBtXNHx/mf/ALPX+XxVNh+/z+/3/f8Azpr7SmlKaUqK519FZf8Aa+Q/h5ulKlWlKaUppSmlK8SRVThP8pz/ALcpz/418P2+PkHv9iD/AJ7+NfevjDYI+N9b/wAej/p8fvXMp4ubk6HcLLMb81eK7Irxkk6Chm0ltKUCM1RCPllwFBBH4RLlDRCDnyD/AIjcb7Xl2atzpIYMjehAB8BpXfv42wDbBbQA39Xya9IPSOAXnjWMyAj28+PtSSx0AxgjGx1xA2h7JLEgEhj8Y2wneWJj1exW0tXH97bYJkpkwRkDKcdNHDkC2TXUEF0EIWjVweBFHG04UlrrZ+XN48scWNtIluTG0fuyak2SNmQ/Qp5qwA0HA0Aqnj2dmzHhkl/M9xfXReFpS/sxkLx+yxniSTpeyePR77+awxuft5i+6ds7ZZdRMWtjLNpSntocGakdp1XRhtyIvlqENVPyjZQeFbVEIkRB44cL5T5ZZ3k97b5KctcyvJOkqJLbtLNGqCT2SoVGjRAkWiAiqvTMXJzGMaDDxp+CWKIRQtbrtPcYRn5DBue3LDmW1yLAct/AnVbS4jUYqeHnWUdTQSIr8f8ASKtlmGjbUoVCQ6gQwbQZLpr3dlOEr7zyq8+ZuERLvuFyGQN/HkLq6a5vvfjlM8p99lI48CzMeKLGwUCJQIwPoXiAd4C9N3cXa3UZuZHRh/WlLtvWmUHnotH86XQVQDoACrH/AAN0kFnK8DrYLSBEr3m24zXXzCbjVsSQYIZmql2TyE7GfxH6/Fyqavl6BxXN9nbW6unaSf8A40rN3tlHNtjWl7B18/So73uq4+sdy38tyLsV5zaBZTpecjqoCgDRUBiV0etHY6q8NPkn+yau6OgP8KqeP3/3+n/mv3X2lNKU0pUVzr6Ky/7XyH8PN0pUq0pTSlNKU0pRfkv/AN/60P8A5/8AalcvXtJBPFvEtmcN3l2LNKFfETYdBZau4MV9tpznp2NH3DIerjYOogiRGScJ5nfxQYIweYZac8HF01vPGmiOQmt1mcHj39Kg/UQ3YB0ASa9G/wCHmdch6f4r2zwnh/EWg5t8yW08iAj5+ll0DoFlJOxxILYGw6123tK/3ghcadEUQxKQ0zKAzERVxl5P6LyKqc+U8jSdhXjhT4GnE+KxbqBc21wzd7eBuLx6O9qx37ikntGXagfP2Ek5CDPwzgB0ZN7DGJmQqDoK6gckKjoMhbZ71ocjGM5yWHHjhGx64gvuwkcQRnNhDsWVJpEEWzR9wHVVs1ZDlCTuBcKgohr1RjzC6RwvM1qygqRB/UI5NoM4GyyfSfjsE9f8vexdg7s73tpInuaY+zIZITohgxjZVK6YcjxKk703WhWA6LPXJVmIuTQTyXPMccNxHEAkTqhqSKQuKAkqoip1Nf2XsialTxzATxvbu0bMA8cgT2wyABQA5SQcO1I2GGzrZIfs5DLWMawPxTplKgICjaPzxYakXegDo9bKkkE1fJ7M9lnIMzctGyJWqegmzGRdXt5qu+XXo6KCXwL2liSIooiiP7knp6D/AMP2Ia3LXDo0YitW4BlADAH2dg7G/wA/elA2D8g1R/16uBBAlt0Wnu40Yr0ECgzcT9tkoAQCDs/Gqu91aequ00pTSlNKVFc6+isv+18h/DzdKVKtKU0pTSlNKU0pXIN7eyflezfiew3ch6pyJvBs926pIsG+Z89milZTj8uxqbunasGwKLHs4dMlLPdgS3AdfiyhkRW3Wyfcarj61eAr5VIsqxRiSa1QCSWHmrvBsCMEfV7qhVIVRvi+1J+Kuf8Aw2edWGGwt1i8g6MlvkZHMKt/VhiueDpcMu1b2jJ7qc165Dg2jqqtcJ3+pvKB6bZxXI5j3bkAbUkCVFHhsnIxL14E0Tq6jZIRIpIKkY6pJdekF2biWKK3uIpeR5IpmgYb6LKXAX8ykaG+/j53V07nJYue3W4iniaIoGDrIHHYH6HsEEHob61s9Gsdbub8Q5NkdPj0zpKc8hpZ73c4bYvJ2eQ14UxbbBOvmqiiqKhAqqic7b416L3C+3dXxuTErN/ZvxJWY8T9OuXWm7I2AOtHRrBTeWYqyR4kYNIACJRGWjBYnfMqumAHQIHfxo/NRjaPcOXJsIrl/M85JN1DqYdaJuVz8mWLwNyHAVwm3FhCnKNvuArBKbCE2rhESTFa+l9laPB+FiBb2vfmkMhnWOM6aNGZ+Sq7KNuvI7bbaABAjPK+o3vrcnj7arJ7MI9rizsFb3JOP5gpLAq+taIHfZrsZ9kXhdnAxDNMsnsyXorpMUlZbqjXuM8npz0+cxCeZbBqQkBmNXA4jBK3E873dxAfUwCyvgGLSxtndYBCnsQwoFGk328qjeuRDKDteuz0u9VSj1bzf8yv7eH3Q7LLPM6nfMKNRxMwJ2gYGTp1Vm0DohQTctqRah2mlKaUppSornX0Vl/2vkP4ebpSpVpSmlKaUppSmlKx5ujtLtnvZhtrt7u5guL7i4RdNoFnjGXU8O7qJJB6syEjTGnEjzYpf1IdhFJidDd4diyGnEQtcUsMU6GOaNJUPysih13ojemBAI30wAYfYjuu1Z315jp1urG5ntLhNhZreV4nAOtqShHJW1plbasOiCKph3K/h3/ANl1g/aYF/OLZSSZuOMQsA3DcsqJlx0ycJz9MzmuyaW6SESC2j9u6DTQCy2Itoia1efwvCzuX9ueMEgiMS8400Nf01lEhj2PkKwH36PdSjYetXm1nbx2ss1jexxDQkntRFcN/3yWrwLJ3skyRsxPydVhVP4azw7yZCFaeI/xAzYXIoURqFtnBcNtERFZKWxjRn5aonqItoiKqqPCcImOT0+xccxlS5vgDs8FeMKCTvYJBOx8A/oNHYrPSev8A5LJai3OIwgcAAzsl47sANa4m4Kga718ciT8dDa/Z72D/AIBdrbGqtrzGdw9451M4xJrW918/nWVLElsPK+DjePYvFxetkMi6vxQ7UbSG6HwPtPByK5qx8VxFg7SRxSyyOeTtPKXBPx2qhUGxvoKR2RsCtIzHqd5XmFWN7m2s4lVkVLG1SJgrfI92T3ZQT2dq6/P7DVw1FQUmL1ECgxuoraGiqozcOrpqeDGrauuiMj1ajQoMNpmNGYBP7W2mxHlVXjldbEiJGoSNFRFGlVFCqB+wAAFaBJLJNI8s0jyyyMWkkkZnkdj8s7sSzMfuSSa+tr9V+KaUppSmlKiudfRWX/a+Q/h5ulKlWlKaUppSmlKaUppSmlKaUppSmlKaUppSvElJBVRRCLj4UJVFFX9kUkElRFXhFJBJRTlepccK/wB/7+a+jRI2SBvsgAkD7kAlQTr4Gxs9bHzWkULxIbv1EPJmcs2QyKXZxrjJY1DJoKW8jUg1kZ9sMYlWrjz95bTGbKNNrptlYVUFlyGydg0lK1KrjZPVVzWTjWcXOKleRZp1ga3jlSExrr8O0pLTSMsgaN2kRBxVnUw84ypsTc+kngV/Lh5sH6kYu2sZsbiZstBl8hjZssb6USLmrbHxwRY2whms5rS/hsrK9unF2Vspjkfw98jpkDGN9and7ap+7g4zlVMmTYTmUtpJ9JYrAgvU0K1q7SDYW6RQr405m3r7SExHV4/ehgq+w4YPs98pjMtHkoYJUt7iL31cqJIn4qYmMciySceCMJVkjVSSWMZZSQRUe+e+m1/4Hls1i7rL4TIHC3VpbyNa5Kz/ABN1HkII7yxurSx99rqa3lsLmyupZBGhgF0qyopRyP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAMBAAMBAAAAAAAAAAAAAAUGBwQBAwgC/8QANRAAAQMDAgQDBgUEAwAAAAAAAQACAwQFERIhBiIxQRNRYQcUgZGhwSMyUnHRFjax4UNi8P/EABsBAQACAgMAAAAAAAAAAAAAAAAEBgIFAQMH/8QAKREAAgICAQMCBQUAAAAAAAAAAAECAwQRBRIhMUFRBhMUYZEjobHh8P/aAAwDAQACEQMRAD8A+qUREAREQBERAERcr7lQsk8N9ZTNf00mVoPyysZTjHvJ6OUm/B1IvDXBzQ5pBB6EFeVkcBERAEREAREQBERAERcF5uUdsozNJud9Lc4zgZ+yxlJRTlLwjlJt6R+b7eaSyURqa15AJ0sY0Zc8+QCpX9cXaqmJorfRRRdhUzc5+RCgL1cZ77Vsqql0TMNIiYCMAb9c+aj5hWstlU6OnjdI6JzImloG52yD6Klch8QWSt6cd6j7+5usfBjGG5rbL9WcSe8WtouNM+nnO4ijfqbLg9Q4dvMH6qg3J1Q6Z0hEMbXHOgDAC4eFac2umayqjlmnY0DxGxgdyQOu+MnfzKka15qSKcCSIyEbPbjPxytDyPIW5d/S3tL19ydjUKldkSfDPFzbI9sM8M7opXDcSamgZwSBj/2Fq9NW0tScU1TDKR2jkDv8LIrfBDBDodDHPKTsXu5W9tv5UdWQPjqDJDpjkacgxgt+q2vH8/PErVcl1L8a/Yi5GFC+e12f8m7IqPa+LHU8NFHXbEjw5Q/Otp2w7Pcb9Vd2kOAI6FXbEzKsuHVW/wDM0ttMqnqR5REUo6giIgCIiALgvNvFwpgwENkYdTC4ZGcYwR5Fd6LGUVJOLOU2ntGT1wlPIwNZo5S3SO3YHr81GjxYmO1xuOe/XCstdCILxUseSGeK47eWc/dRLtLqoh/TK8v5CqHW4vs96/BZKbdIiI6pkTyXNeB6heySppZmscJGtc045gdlNSxU/ZuVwVDo4nZjZh3YhQ3iwjLbl4O5XKXoV99a9sbo2/iDVtsR8Qui31NbJMGmNxjP63EY+K9873uPKwj1XiAuDvxAV31109XuZSm+nwWWwWSGvukRq6hz4xzNp2nVv6u8lp7WhrQBsAqNwLDmsLxuGtJV6XoXD41dGOuiOtldzLHOzTfgIiLakQIiIAiIgCIiApHFzWxXjLuUSRtdn1BIP2VUrCAdQePgrf7QIuelkx1a5v1CzKuqXRVAa53KvOOdr6cycdfcseBD5lSaJ6OYnbdc1bUCNwOOZcMdToY6QvDWgElxIAH7lQtwvVI+cMZWQPJ/KBIMkrXV0SktruSVVJvsiXlrXZ5Whe2nfLUEAjZRFM/W4ahv6qeoshzcdFLxqG5I67Woo0ngWm8Kile7dxICs6huE26bQ043c4lTK9GxodFUYr2K3a+qbYREXedYREQBERAEREBXuMo9VLTuyAA8gk+o/wBLI73A18x0kEg9lr/Gzc2KR2M6HtP2+6yyRmp2rAOVRfiWPTkp/YsHFS1XshL3A48NXAY/4HLIrpUMf4DB+cObqI/f/S3e4UnvVpq4GYL3xOaG57kbLHbjZ7lI+GBtFUag5uS6MhoAPmovF2xjBqT9SzcbbHpkpP1NRipmSwh8cg1Zwu2hbMJmtcQRnGwUFFrY4lpIz5KwWUOdMwuOd1hhvdiSNDdFpPbNksEfhWimb/1z813r00TPDo4GfpYB9F7l6LFaikViT22wiIsjgIiIAiIgCIiAhuMv7YuDv0x6/kQVisVxYZcPd3W58RRGewXKJoJc+mkAA89JwvkQ3sucDnS7uFWOfxHdOM17Fi4SKshKJrEUUM+oxTSRF5LiWnvgDP0CjKugLal2uve9hAxnqMHf4FV+zXjVAObJ/dfurup8bqPmq58qS7Gz+mal5Jekt1PSjLJ5ZOQNAecgAeQU/wAOND66JnXU4D6qlR3PJ2cFdPZ473u/0jBvh4cf2G6lYNbd8d+rI2VW4Vts24DAAHQIiL0AqYREQBERAEREAREQHhwBBB6HZfB3FD/c+Iq+DOjRUSMx6hxC+8l81e172L3Z95rLxwtGK6mqZHTSUmoCWJxOXac7ObnJ8xnuomXW5pNI2fF5EaZvb1sx+gr2SjE8Ti6F2phBIPwwu2quzyQ45acZxlR0touNpnfHcaCrpJm7Fk8Lmf5Ch6moldUtaDgg8wAytV9NGb8FhWX0d33bLXR3dztJefDB66j0W6+wvXUXl8hbyxwuJPkdh/KwSw8M3TiR7Kejs9bWtJB5YXBuexLtgPmvrL2T8IVHC1lIuHhitmxqZGdQjaOgJ7lZY+L+vGUV2RF5PKj8hxbW3+fuXpERb4qoREQBERAEREAREQBERAeHMa9pDgHA9iMr0to6ZrtTaeEO8xGP4REB78IiIAiIgCrgvtdC6oFTa53Fr3BnhMJGkdCT3zt0CIsJtrwS8SEZtqS2d9ovEdyiic2GdhfqzqYcNLdiCe2+fkiIkG5LbOMyqNVrjHx/Z//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAEEAwEBAQAAAAAAAAAAAAkGBwgKAQQFCwID/8QAOBAAAgIBAwQBAgQDBAsAAAAAAQIDBAUABhEHEhMhCBQxCRUiQSNRYQoyQoEWUmJxgpOxssHR8P/EAB0BAQABBAMBAAAAAAAAAAAAAAAHBAUGCAIDCQH/xAA4EQACAgEDBAEDAQYFAgcAAAABAgMEEQAFEgYTITEHFCJBUQgVIzJCYTNxgZHwJVIXJGJygqHR/9oADAMBAAIRAxEAPwDf4000000000000000000000000000000000000000000000000000000000001wSFBJIAAJJP2AHsk/0A9n+Q96E496a8XFbl27nZLEOEz2GzEtN2jtxYvKUchJVkVuxksJUnmaFlcFGEgUq4Ktww41R1txoXTItO7UtNExSUVrEM5jZThlk7TvwZSMMGwVPhsHVRPVtVuBsVrEAkUPGZoZIhIpGQyGRV5KwOQRkEeR417eqzVPppn1/fTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTVEb96j7K6ZYYZ3e2fpYOjLOtSkk5knyGVvSceLG4XFVI58lmclMSPFQxtWzZYHvMaxhnGOdSdW9O9I0lv9Q7rV22CWUQVVmYvZvWiOQqbfThWS3ftlQWFepBNKEDOyqiswu2zbFuu/wBo09ppS25kjaaZl4RwVYF/ms3LMrR16lZPTT2ZYogSF5ciAYePkr8r98/IW1d6JdNsNu7pNgoHkt7v3DuGepicxmcQVRqFS8tewtfbmAsp33rdSfNtlM4or0RXWKK1TsaFfL37Qu59f2JOhelK279I7LBIZ+p973Oapt8lnaXRTXWzaWylXadumUtNJA24yXt0BjqRRgRzwy7T9AfGuy9DVq3W2/Wtn6utSjtbTtdBZrNSvcVmWw8RkiM1+9GwWGN1ofS0W52C7FoZY7Z9M8hnOlOTpWqu5MblZMZPBCWwuQyVOrLF4mhuSQXOaMIksBw0ox9iSSvJxKQ03KmzdB9Z2ejL0VaDqGtv1arYrxV46A3SCFa7xlJpFt244KkryK6NMu32ZpEUmRmaUFT09VU9v6jSy426xt/1KSuFtrUkljfuCSOMpAZZysXFhG9iJBKBwwsfkSCbS+XTUq8Ee5XiKhEdPzCyl+S1AfUb0sxg6R+rZ27lJfH3HjIAmk7idbUw/P3Sm0VOfVG67dtMwSN4o57y3mspKSIjUfbq8k1vuFWDtFXmMJBE5DA4ha58d35JD+7Y5LS8yjmOI1zE4yW7sVqVBEFGMBpIg/tAB5NquqPyttR9Q9jb528+58LjsbUvY/IYWanJZx1+tHY8lxpYkas1+tcMiLMslSK1WNWnaoSiWCWtLH/VH7TXT1Hdeld6o0OrrO1Wv3rWsy0NqM+1SJRdY7EkcsstV9xhV5As6pAkkMsUUlWV5YZqz5LsXxvPZ23edqsvtT2y1SWvK9jhZillQmMMFWVa7qVJjbuPHIkk0c6KrxypIj0x6qbU6qbLxm9tu34Gx19THKkkgiepdikMFinKJxC6yRWFaLtkjjcsO0or8rrZ3o/rTp3rjpvbuquntxiubRuKMYp25QvFNFI0E9WzFMscsFqvOjwzQSokiOuCvkExJvmw7n09utnZtzrPDdrFeUeA4eN0EsU0bRl0eOSIiRWVmBU+9XK5/wDv/f8ALWV5zqz6aaaaaaaaaaaaaaaaaaaaatp1X6m4rpTtKzubJVpr8ok+mx2Nrusct24YpZ+wyMGEUEMEEtixKEd1ijKxxySOinFOterdv6I6a3TqTc8tW22s8xhR0jkndQSsUbSHiCcFmIDMqKzKjEY1edh2Wzv+519trEI87ANKylliT1yIGMksVVASql2ALKNROz9VZOp2WfqvuzunzDWre3sPVhhIp7aw1QrK6YKrdtSpUOTFhVvWonF+6y82ZTGypH5r3vlsfIu/3upLLrbvCCCklaNWEOzbbPLNJDU2pLM7CCtaVGa/NGy29wsgvaZYVggXZA9Lt03SXp6syxVyEvTyEr3NwtAKge88UQMpgIIrROpgrr9sKl2Z38exZpNQykn66uDuZW3blgjf6Z7kkbfTmw00bBqoKqRLNWk8sgPhimjjL90W751xHLYu9P15THtlPcLMk9dI4lEdwvDHO8UgBCWyF7c13LyxR8IYpY41lQ3CKnLCa0xHeumtDHHI+ZEii4tIidtjiTDNyWJ0CAhpHR34nVuN05Xb6SY6pg8TjKE8LCVXiowgPNwVrNNMT9TZCsxlmRVDWikayzJEXVqqf5g6K2SWOvuscP1dmrW2yvRqTBLknOcpJbu3FWZw8KoorzmNhAHmniVWKstXR6c3u5HLYksyLAjSSF5iWUgA81hr/YgUliG5FRgcCD6Hr7WzlXH4WpVyFK3k9xz3ZfozXx9GOlLVktR13aQ1kgknyJnLNHAqOkcaRVZVBUvru3vqPY9yoVN/3Dp3c966hs2RsXTOybbFTqbbNtklx6sc7WhGb27b1JPFJJ3rc1hFgNeCeFe2WPx9umWxNFUuxw0IUEl6xZlmez3xE0hCoS8VaoFKqAoViS8iyeQNex1J208lt0NjJzVLFePwV78DY2vXsxjmxUnpViksFitIwjnjFgGVe2SKVq06O/V1h1juVJq/T8m17hHstWnDQg2fdvrdo/dV6HElzbrlGlMjRbjVnkf6p/rXj3OErYpzChMmqfYWhi52FSstrvPLLZhZLUs8TYWKVJ5VKvC6D+EBEO0xPcQzIVHa2jFtHO7M3H0kyuJn2rNmKaZDD2MXkbkyZbL47IxXy8cuQmnqVMhPBXmpxMPubjVwCAVMpdCdW9H7v0Pvnxw+yzdNndaslipHs9vcLMO47iliO29h5NxlmSnfsJXNRHE0ilrQRE4o66otyXeKG/UOr69yPdvo5OxOt2vDE9SvNWeBUaOssUkteN5FmwcZ7IcseWRcvol8p9zdGb1XY++bF/c2wGuVKWCyGUstZ3DgKc9qOjHA9l1eS9UrvNBJ9DJKZK8Al/L2kRBTElfA/wA0bl0tcXoTqyzdv7B3Ur9ObnukzT7tt0X1SwrTtWWLG3UCWIu1DI3fqlHSszQ4gXHuteh6nUsL9QbLDXpbuscku6VKkfboXHWJ53niQNivKeDq0gHCRiDPxb+MZfqVyDIVK92s3dBZjWWM/vwfuD/VSCp49cg8Ej3rfxW5AH8H1/z/AD/39/nWubDiSP0/5/wfjXa1y180000000000000001bPqr05qdSttDDTTR1rdS2t/HTzxeeobAhmqyV71cFTNSt1rE0E4QiWPuSaMM0YRsM6+6Pqdc9M7h0/bKJ9VGwgllQSxxzFGjBdCCSjI7o5TDqGLLkji186e3qbYdzivxKzqo4TRo3B2j5LJmN/wCmSN0V0z9rFeLYByIdt7dKLe3pM/hto269EV8nalGIvTvcp07iKKVn6S+oEy0mNdTFWsVPNGQo+sMfHHil1d07U6P3vqTbejurKNbc6liXbb2xb1K8Y2+1tdq4jyUbMcZeaEsZuEV2uiJF2QtgqAo2/wBp3mPeo9vt7xUkljkgRlt1UVZbEUwSVO9ExCLMvIBpInIJLExcsk491cX1IwnhOfxud3JDXsvYFeragv4yJI7DyLXjq0JZHEbHtLJNH5G5I5TnkwtJ0x1ZFCNwko7r1BaklksWJKW7Lfrxzu7yF0q7dZkVnlZw7xTxgqcNiI8TrO7E+wWGMVJ9v2sdtYeU8Dw2WwiozvLOi4IHgMjH36YggelNm487lTbbAZHCXBKjyU7mPtVI2kHHLwzz14w/d2qoRyrRkFVklDA6ibc+luqo92ku1Nl3FuUplatNUt1rQaQ8pTJJbhQW2DZEXbkRsEDgxOWqkSKGkIPr61hDGQksdiKRQoBCqY43cqP6iMEH8hcHXnyZ25LiMX5EyaZHat9J4bblk5tCzLdgeKuIYvJXqWUjcWZJUVJDJC0cwlWWPYWTrm3Ls/Sgjj6ifdekLleWtbatOiLaiY2Y0iprWVDDVsRRcbkssDrJ34nWTvrLHaqG0R1bd+YR1nq71BJHLXTix7ZURPymMjCN50kcGJUbkvFlKcCjXZzvXG3uPIZG3FQu5WpesQz/AJXLt+/TiqSPGklitRkR7qtVS4ZzVd7pc12Cr9OnZDDNPW3ytc+Qdwfctv6X3+01r6WR4JdhvRI2Qk9nb1SmNxM9CG8Z226aa+tiOFuMJqqRHHilXoOvtVWvFNap0pIYmRrB3anO0vAlYpZ1PZaOwYQizBIShcEsJPLt03uZ7P14YqG2mwrNIZq9yzmcfiRXkkBjMqx5R/zFT3N/DMSWSWRGjPkSLtu3TnT/AMgdQQ1a+3dDWOmmMpki3Tcd/wBq2iCMTKYefZ3mVN6jI5kxqle2wlVXid5I4RHapk2fbJpJrO9R3V4BZa0VK1dMirh+IempqEH8lmhUDlywpcnIX4/9MZN2bzpSbny+E3HkhBNC+LpUYrGKSPwM1qfJXb1ZlnsIqtLE1XHxSrYigngmSVIpNbqfD3xcRulbeOq972PqHfasLQmhs9USbVAzQkTS3JLUKm3Z5fxe4tWqBOsM0QZgrLF/W3Ui1aM1XZ6e4bdUlfl9XanMdlwXHbSGKKT+EhUhWR5pRwd0YBTxMvVGpHQp16cXuOvGsa+uBwOSeASSByTwCzEDgFmPJO5CLxULnOB7Pgn+5/ufzqBWOST6yfX4HgDA/wBv9867euWvmmmmmmmmmmmmmmmmuD9jx9+Dxr4fR/P6f5/jQexn1+dRZ9Ydo26/Vbdbrajq1Mhl7Mid3d5YxfihvL4o2KDtJtMySBu3nyKA3HGvB79pr4kvbh889exver7bW3HqSbc6ks8nZkjXc61Xc+cZJURqTalKS8whSM5HgDW23RHUEC9GbLiBp7FakkbecoxrSS1/vIBJI7QDKRlRjlkedWRyWPxu2lnjuyNk7CzMBKjlo1HPpllY8l/YBRCGDxt3L2sjah+2tL45oNQsW5t23mKUxI8NlrFWNIlyjCyCe93vs4qjAKykSKAVIyyCza3yQSxItSuUyVeMK7EnzlT5CjycsuCGHAlg2aaF/JtOs1aJIoWKlAHlMrKTyCgD/wB4AAj9PHPolRwdWbbfk35UhlSWt3GrN5jhJmedUyvAqIpVRiE8hOC/9vLkcisk2zaShSQ5kGeT4TiG8jyWBB85GTn1kg480nufcmWpOkbeWFZF4KuLC/p9k8BpOHUseO0g/qKkEcDjLh8u9cM8KXbNqtIyhZBJHZRk4kkBe7M4EZOGKHIyAVJAB1309g22UM0XCQrkgq0RyfAAYhMhsD3j0Dnx4FG1s/ZvTCFLDPKB3KqTIjAKQFVUmdy3HsBAASHVgeeec32DrXq3dplgh3W48ko+3hawSVBOAk0kyPxHLIADHlhWB866r201KkZkkrqEHsmJyuTj+qJVIB8DLeMhh+Nf0vRZOpGbDqRbLeRo5ABKzMeGSXxckk9xBUtzyVYAcHUgwt1BQf8A8xbneVHSVkdhCSWOGjdYCjE4cAowzkFlwVBFpiNKz9oQCIrxBXkygKchlD+MAjPjIwSD78yJfB/HtNfvXmi8TV8bPJx2heDKYIAx9Fi/fNMGJY8c/wAz2r6Ofs5wf9EacoIzxyeKhUYMFGR4BL915OXniDhRg5UQL8puBPFGG5AyAYLEkcQxAPgLjAUjAHrUlGtmdQ/pppppppppppppppppppppqNv5g248H1Cw9iQyxw5Ta9Wdpoj2kS0L2RrMeBwJXRDByrFW7SAjg8AeVv7eWzR1+s+n95jV4nv9MxwzTQkoWlpXr0cZb8SOiSRgE4YIUCsABjZn4Vja/sG4V/sc1t1dRG68lKWK9aQ59lQz9z14yCSDg6wRbPRWbrBMhWlR37fDPL4HI8hYntn7RIRy7+mZix4HJKAeb9RJpJCtqetYTk+FsSBDxOMmPuMAzE4OORbl5XznU9y7YUi5CvNGygHnGvNQeOAD2slAfCklQpX8ZGDXS5z6JIoayxM3EatJGySu4BIBBjLAjjjkjgegPTAcyVt3VB2hoKtWrEoMaRvNHEJGf7gCRIocEkErgMByHgZwWxSXaPqGkeVycFyI2PArkZwUYAjOCcsD4Jz4zi1/UHKX8rZgh5Z5CvHHbJ7QEnu57QrK3JDFuSCEDhWCnWN9UXxvm6LI0kndJb7QWCE5y5IVQ2GwCwOWJCjP41kOw7fFTgd+K8R4AJUfcD4x92V8g+sDGSMgnNrDjpTL2/xWkU897qE449hgfuCAeFfkMBypYdrDXTQsJVdUgmcLGfB8KQwBTkASceMkZ8eS3sYGQOGMYYmJQRniAzfb/lxOQcefB/UjBGq/wWKyVqSGOa08kZaP9MjtKxHAA/XyX/SvCnuYlSB2n0G1NvSO4W71mtFYuSzZfiFeQysft4KQ2WZjwwFLyYXBK4AGsP3SOpEkjpX4uAwyirGuc58rgD39wwATk5zkgzDfEjalXBbPyV5UZrF6WlC00nuQJDHLO0at+yM06Oy/u4BP7AevPwVtSbd0dXcAlp1g8vglQELlVwB9pLhwMn3kEjGtRfkW81veVQlQsKyEKowMu4GT7ycJjOcEePxjWW2ps1H+mmmmmmmmmmmmmmmmmmmmmow/xF2/KIenWc4/TZh3NiJG/wAPMLYu9GjHsJBIlkKe+CQ/CkjXnj+3xtrNtXQ+5ImSX3zb2kAOQf8Ap9qJCR599ztgeS5OASBjZz9nA/UW+oqeclP3ZaVT6OfqYGbzgeMJyz4A45PknUOMO84pLpjtWxGI5R2Fhz/i7SDID3MD6AXjg/ZuDryJ3GtZV5ODmIk+AykAkEjPkD7iT55AYyS351umdqIi5pFz5DBAOT5H2gKfWP1B/JwTnxU93eUG2qNzO3szjcVi4IpJXyWQnrrFAvbUrUksTSIbDR2j5UaCNmaS1LEGjJU88dkh3nft1qbLt0Frc9znxHHt23RWZp5nVJJZvp44m7SrV4K7zOUSOGOU8wMDWMw9NXdwuLT23b5rdyd5OxDBGkkrcEZvyoJXtiRnLMFUDk+FBOqAy3XbaFzM0KUO98bYt2Zo1o1TZlrWJLBrzReDi3WrV7NgyFvCokaOSSOJFRiHKSY3x/1rQr2rd/pTdakMUDNelarI9dIomRnkZ45pWgq4UGTKrjLPKVU51d//AA96rrUp7c2xXUq1FM8sy/SSiGID/EcV5ZWwhfJfiEQFSSFLNq5FDdSTVKjwyRNZshHPnlRW5lcytGojPCtHC6oGYcBgpYkk6xJVprK0ayOjl+2qRRuVVkULIrExvkcyWZlYAgN6BJGOvQvFeUkH2KnIsTk4PlcKrLj1ji3n148Z1efZeait5GvWjmWRvKsZKhVY8sFIZCO5OVPvj7kleDxzqYfjp55dzqQxlXYyRrx8Kp5AM0YJCtxZCCBn0c+CPOHb/SMVWWRkwpVjk5yPZUgg4Zh+h9HySPGJzug1H6LpziiVAazJNNyF45RFirID/wAkn+pYkete4vxhVap0XsyMoVmrgkYI8IEiXIP5wn3EeMnwWHEnRjq+Xu7/AHSDkKwX/UlnPj8D7hgfp7wfAvLqQdYzpppppppppppppppppppppqIz8YqhuiPoL013RtfJjGvtzrNhFzgaNZFyW3Mvt7cFe/i37lZkWxZrUrAkTsZHqoS4jDq2tf7UGx7fu3QMc9+iLwp3Jo62WKtVtXaUscNtcYLiJ4QHTyGRmJGQMbCfs3WSnXU1L6j6dbe3GSTMYkE6U7MLtX8kdt5BKTHIPKsuP6jnWi6qdc36cbfpbrbBZbcgs712vtm3VwVeazax1TP3hTs7iurFHI8eOxS8zWpZESIOY0kliVxIPKrZviWLrDeru0fvKjs8sOzbzusM+4ukUVybbKxsQbbB3OCm1dY8IlRjIVDlEkKlT6E7juke019vf927huIu7rtO0tHQgazJXG6W1qm5JHEpKVqfLuzSsOKJ5coPOro9S94JneheauLYRpo6+Huo0UpKh4MzQIlTuXvTtaQMD6dR7B+5ay/EHSU2xfMuyMIJuyDvFTnKCHY2dqshkkKt2zkoyhSoU5IHIhSuW9IQx7f1zRX7Cha9C6sBgo9OwpXK+GDKCMjIIPgD3qO/f3Wpcpujp1jaRngsY3dO2ZcgWeRhG8MlEtArEsLK2bjT2ZXMcDRTAI6l3kL7x7l0m0ezdSSS+Vt7HusURU8GxJVsIHHEKUKQlYzxLgg/zYGpYqVYqVfqEGWGZbdDcYkQcSO3IZl+5QMJ2YOEITL9xPvzwCgZ74LqnLJcj8sqzcmZg4lY9iMSIvJ293BHB7lA7ezngEjWkrfHcKhJY4wjLxBSQEqSFAOMcifHEEgnxy9jOYTvbbHHGVjj4AhAQVGSwALcc+WBODnIwRkYGc54fF7cdDe+YstjctVv2MRmYcTlRDJ5XoZJI4LL0rS93fFOa9iGdVcAmOZGHdz6ln4+6Gu1eo9phmhFRLcMG4VJZ4wsdmB5jAktcnPMSzQyxB8sB2mXjnGtffke7VrVLkMbJKYjLXsJC6s0EqortHLw/wANljkjYoeJwyscZ1s4dNahpbE2vXK9rDE15WHb2/qsFpzyP5jye/8ALXsH0vAa3T+0wkYKUosjGPLAt6/tkDOST7OvO3eJRNuu4SA5DWpQPZ8KeGPP/t//ADA8arjV+1bdNNNNNNNNNNNNNNNNNNNNNR9/ifYH86+HHUmyEV325d2puGMsBzGa+4KmPldGIYI4gyUqhiAOGKk8MdRz8rbdHuPRG7RyIsgiNWfi4BGVnWM4yCAxWZgD/f2Bk6kv4i3Ftu692WRXZBObNZipI8SV5HAOCpI5xISM5GMgZGtMTcW64PBYo24Gkr5KWfGSovkRbkdhXhsQOylG5MZcHudQSDw4Ycjze3vpJ13CtcoRsvam5JJGvmKevIHjlQNkLxZfAK+eGCpAwfTjZN6QxMtiwv8AhBskkERspDK3Ag4dTgkEMob7fJLD84mvkF6TZrY+E3DPuOBaMtXHjJ5BZctUNaxFPVxNq0/LSmua4qRWrDmXuRVsu0gkk1VVaaQ9Z7X1Nf2qLbWWys1v6Oq0cDiWGSCa5DXBKxGUStYeKHMfFyYERSqLcNg3Db9q3ChIblmyaEjIZ55vq5+03cRfqJQoeV4I3EOZA0zpGBK8koctiZuzE7xTN7Wls4S9josLmsPevWbS1BVmr46SKexLEousYXihieBRKrGUMhLJ2ACaLm6bHPt24JFuMNlrNKxUhiiSx3TJPG0SRjlCvJnZwSfGPZJ8jUgQdQ7fH+8XFiNxar2ArrIOaCQMzGQtGg4Zbm5yArAjzktrLroJksnuy7Lktx4qxg6k8siYvDW44xbNZJ2EVu8kLFYWuJ2yLEJXcwvEWCE9pgrqna9s2poKVKyl3gI2uXqqyND3HjDPBWL8WmEOSjuEC81fAYDUfWN0tXtra4adjbnkknCQX5EFo14naKOV0jaVYBMFM0UfLksUimUqxwJr/iJsHa+19yWbW2MTDSubvzrbi3LNBJM/5luCalTx5uzieSWOJ46dGtCkFdIa6FDIsPllnd8r+Om3DeOp+nUtPNcj2mp+6tpimSPsUKAmksRL9sKsTHJJJKpmdpQzDLhI4wNVPkV69Slu0qhIHvWWv3HVnaSzYaOOJ5DlyAWSKJWK/ZhfCliS2zzh630eJxlTjgVcfSrge/tDVij/AH9/dT9/f89em9WPs1q8Qx/Cghj8f+iNF/19Z/11o5M5kllkPt5JHP8A8nZv/rOPQ9etelqo116aaaaaaaaaaaaaaaaaaaaaxU+cWNOV+I/yDrCGWw8HTHcWWjhhCl3mwUUebhADFR2+XHoX9+owxAJ4Bx/qmt9Z09u9fz/EozEYXl9yYkU4yMgFPIyMj8HV/wClrf0PUWzWvH8G/ATluAw7dtvuKsF8McHBwdaAu+92RV8pF4LdSZrtkvappaiaxX/iPEt/gnmPtdWEpaNO8GNlVXJB07ubBOnNuxJ21kCCUp9rtkhSW48TgqQcevZOBrffaOpKs0cY+ojMnbbMQZOcagKSrRFuQQqykE/ac8feu5tS1h4as0+clykOMtTW/p7lO9YhhWezK09idfCWrh7E7NJJNwHDM/HZFLIjUMlGaHgzxwngsakPDG7sFXhEC2CzJGoVAmRhQpOSFIuEm6QWC30szI5ZpG4ysE8uXkPAsV5SMS7MoJ5FgCAzBqK3RLgbudahQzWRysEywyM0thDHVjEVqqtaWw/cssRS5K6xiENHYSvMGWSIKvL6VnRJI6USNF3Mv2+K8i0T8+P2lZA0Kjkpy6NIp8OxNXV3EKrxz3ZCspUdoS5YIqyxlWbLqY8TM3Fh9kiowH2IBebpLmcPtLJpDhUtZnL22qw2Fkt+WKpWg71jPL/wK0MQndTx/FcBQeBHGBju67K24kSWIov4HekhCwAJ3nCci55EOWMa+Wzx/m45Yg9826pFC0SzOsTrEHDWCzmNCwXgvEceCu4wFXkCFPlQRPd8Kty0bm99m4O7k6cOSzGVoRwUVKcy+e7HEYo5G48s4JIijiBkkMbBFbtYrlfxH07Zh6hqvIWcST8nMcBEaowzxdjnicgDPgnH2jGda8/Km6RPQttGvFUjKR9yUc2I+0siZyBg5I8gcic+M62eR9vQ445HH+48a3n1qbrnTTTTTTTTTTTTTTTTTTTTTTTVtes23ZN3dIeqe1IYmmm3N053xt+GJOQ7zZja+VoQqhHtXMs6djD2r9rDggHXTZXnXnTGeUMi4/XKMMf667YG4TQvnHGWNs5xjDA5z+PWvkhdVOqWc2jvvO47JO9iKPIWK7TrLMLsPbKV/iwxyLFMY5EKvFKAyPySRIpJwaXpencqx9tCjBS6KQrxh3wSF5A8AxySR6PrI1IlTq3cNvsOTJlXIjkcEpIyIeK5KEc+IUABgQB+mTq4G3/lxZxG36eOxEE2SliYJZp5ZeKprsvJkgHDOGLcCMSCaIAuD+wGORdBd+w4tKkURViJIyGbuK38o8eMDJbHjHrWYP8AJU1evE1dpJZ1wGjlGF7ZXJI4/wAwBXC5z5ySc4GvYHXOpuzEPZ+mhxWZqlmavGVjiXjlkMBjCM1eZQ3pv7sq8AAANrptdER1bJijBsQEA+gTx8fax/Dg+vwV/vnXdD8kWbNQysywWFJP9WCwyTjj/QQfOSSGznAOuvsr5KWtuy5J8bHNPajkhevGpkSCeQIRKskzcSLIoU8gkjx8ntcAnXIfH9WdVMqCCJicnwXUZOOK/cOJB9ZJPlTj1q3y/Je4LyMcndcLxXIPF2YeSxJHlSAPwAAPZzrYx/BI3Xujrz8oOluY3JImTTaM2TyaVcfVK43HfS1prsM12eMg2bEXjD1ZZQIgz8Dylgsd62Xp+js+5wQ0ouAaSN3MhJlkWKNmLBPAiXIGcYDHA44znEt93y3utCWa3IGZgygR4WNDI6/b6/iNx8DJPBSQCRjW8KPsOfvwOdSYPIGo91zppppppppppppppppppppppprhvt/xL/3DTTXyD/xMqdTbPyz697Zr0UxV3bvVnqJgsjUNdqTRSY/duZrlpahUiNyVVQsbNFICs4JD+rTt8brEUOcB5VGT4yrlSB+Rj9PwBhfAwL1ddTwb+owo+f1BQHJx+T+fH+f51hpszKxx1EW3E09gd0ahOCYkZQyHx8KSPR45IUt3H175rZYx6GVBOTj15J8DOcePWPf5/GqWOVvAbDMAMez4/OT78/p4H9jrs5TKSVsnGiz2Fewo7FiWRGEcp9BlH3JDevXaWA/Y866+2mPAAI8Zx7x/v6P9/Hn8+Nc+43I+TggkLjwF8j8DOB58ZJH41XOxvprV4GxaaTyQOj10jEs0REvmlggYyLG8syQKrSdwClPQYOe3pkRlRsEAk4DNjGSMZY+yB7A84IJOuaMpP3AnHsY/HjAJwPB8E+8+zjOdbtP9mu2tT/0t3RmaGDnxwxuzsq1lnYzsPqZ8XTintTEKEls/UBYYo1CLGpUM3aWktO3qTvEpLtKywMWmIUIcsF7cYGcKvgnycnBJycardxJG3RYwqNKoRMnIADNk58lvI8YyBnJHga3EdZTrHNNNNNNNNNNNNNNNNNNNNNNNNNcEcgj+f7j7j+o/qP2001pHfjZ/2d/5A9X+unU75dfC+DE9To+p9/I7x3/0PyGXx+299YfeOQhE+4cx0/yGcnp7b3Zhs5chkzDbbyOXwWdxWSu26eHOcqzVK1G3mKxBI7QFZI5ZFlaJywZWJ/idonKhWxy4+MN/Y51cY7FeVFSwrI6RmJJkAIZf6e4vslc4z4yo8/jOoruz4q/JXoFZymM62dA+snSrcuNtCKelv/plvLb1aaFOVM8V/I4WDEXew9rQzVMhYgsQt3xPKhQtzluKskaNDOEdfuft5CMDgZ4knB9fynBwc51yhrCRHZZoeQ9KX4swH/aCoHI4XGSPPjB9iyGU/MJJobD0WnmSz4mWOvJJLGhX9PmiCl4g8n6Yl4BkKlUX1oJ6/J1BYELktwIUsfOFOBycYHLAKqPfknPFoZhhiIyGPlO4uQBg5YE5UeRjJyfJxgZ1Ij8T/gL8vvktmsVH0G+MvWjezXpaUFvdcmysztjYNBZGUmTJ7/3lDgdoVoQFSSSUZYySqpWESrF4xQ96zP3FFeVkHIR54qDj0cklQGyfJ9ZyVONVnbrQhHNqIMeJYAM/H8t/KAWbwMfqfzj39FD8Jf8AD43J8F+j2Sh6k5jD5Dqjvk0rO4MVtqd7m3tq1K8aSRYStlZa9WTN3hP+u/kBCKUTxpVxz2YVku2ee1UJ6olmtMhsTnBSMkxwxBiUjUkDmxBBkfCgsAFGBk0253YrLJHXVlgiLFWfw8jNgF2UEhR48DycH7iT6lq1eNWvTTTTTTTTTTTTTTTTTTTTTTTTTTTQgEcEAg/cH2D/AJaaa/m8UcisjqHR17XR/wBcbL/qmN+5CD+/6ff76aap2LZe0ILP1sO1tuQ3O8SfVxYLEx2TIp5D+dKay94PsN39wPsHnXzAHoD/AG19yfWTj9M6qQIo/bn7eiSVHH24UntXj/ZAHPv76+6+a/Wmmmmmmmmh/wDI/wCvvTTWFcXyR6qYOfdtfdvQjeV6Wjm89Ftxtn4XN28dJgsfZs1sTayGQtwWbN+fJqKN55cXia5ip2LiJipbVGCLJ4v+/NwhNhbG0WnKSziE1opWTsoxERd2Vi7SDi5KRjClgIyyASbCSfEnRW4x7HLsXyd09Wjs7btbbqN+3DbobUe6WoYpr0NerBNDFWiqMbFVY7l2UPPHXZryw2ZXpXa6RdecP1YxW37tTbW7sTZzQz0Uy3tuZhMZi722bIx2Vo5PMy0oKFG62Siu1adGaU2Zno2Y2CzRmMXHbd3j3GOF1gsxNKJgQ8EojjeBuEiSSlQiPzDBUJ5Hg3gEY1g3Xfxpf6Hu7pXn3jYb0O3na3jNbd9ve7drbzAbdG1S2+KzLZs1hTetPYsxoIYxaiYFo2WQ/wD/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAYHAgQFAwgB/8QANhAAAQMDAwIFAgQDCQAAAAAAAQACAwQFEQYSITFBEyJRYXEygQcjUqEUQpEVFiQzNUNisfH/xAAbAQEAAwADAQAAAAAAAAAAAAAABAUGAQIDB//EACsRAAICAgIBAwIFBQAAAAAAAAABAgMEESExBRITQVHBIjJx0eFhgZGh8P/aAAwDAQACEQMRAD8A+qUREAREQBERAEUQP4i6cF/ktP8AGOM0fD5msLomu/SXjv79PdblNqylqKx1PHBMcv2xScBsgxkuHcd1FnnY8GoymtvglywcmC3KDXG+VrgkaLCKRsrA5hyCs1KT30RAiIgCIiAIiIAiIgCItC81clJSF0DQ6U5256LrOShFyfwcxTk9I5ur77NabeZLfGyepDwC1wJAb3JweFUV419qmSSqmoKmB9PKwgQ+C10beMeV2dw+Seq5WtZa+4aiqRd6qrFNFsc2jiJaJgR7cYJzzyV66ejq6+ucJpWUnif7McYAY0egWTzPJWWWp1Ta3r8P7m4wPG04lCttUZPW+Vv6PX8rr6kY0THLFfqWmo4PFfO4RTNk8pGeS4+m3r8ZVr11sntlUyopHula3+Yjp8+yiVTPpmhuT6cvc65DMMcz3ENaT6ObwOe65uqrherNPELpW1MLZI8NGfqb6jH2z3UDLors5cX7nHK+PsWOQrM++Lj+Ha6a/N+hItUa4ucVRBFbRLDtHnlY7BkHpjPT3XP/AA//ABEq7TqCZ2qaq4mjn3Hb/mNDyepB5Ax+lQOQ3W43nbTOklklcBHt6O46+gUqoLDLJcG0epqSRjqfDnOa/BcMgduoORyCverJuqatb31vsl2ePwqMd02xXK51+b9Vv+p9F2S+Wy+QvltNbDVMZgO8N3LSegI6j7rpKq6u5QWqxm26SonRV8rgI/BAZh2RySfq4B6+qs6imNRTRyObtcR5h6HutRhZ1eWn6GnrvXR84zMT2H647UW3pPW9LXL19fseyIinEEIiIAiIgC8qmBlRHtePheqJ2CtNQadpaqsMzZXxTny+blp9lXmptNagpquF9nAkY1mN0U+x2Seft0VxXlu2eVv/ACKjzxmTIIyshkUV1ZDs9PJpMHyVtKXyvo+SpbXpy8W25016r7P/ABk7KguMLnAk8cO44yDz8q07rRU2rrTDFd7dO0E+I0uG1zD89lnKwOwXDOD3Wi6plgfsYQGjsOy5WQ4p6XD+CTleQsypRs6nHprfC/yaw0tLRzOFvpmgbNgcMBob6LqwaZmrqJgqX+DVRPBjk37g1uOW49OnHss6Kd8xaZJCcc+U4Ult7htGF4Y+DTZa7Xvn43+xDu8hekuefqY2LTtNSPY6R5nnHR+3Abx2ClcUbY2BjBgBadDzIPYZW8tVhY1WPX6aopIpL7Z2y9U3sIiKWeIREQBERAEREBGdSuDKrzdHMBHyoxI9glPUH3CluqomvbHu6lpAI9lCHxyNeNxLjnv2WU8lOcMhx1tFpjJOBsSEc+dp+649XzMcOZj5WNxnFFHLLUyFsLQXF57en2UZn1Hb5J2BsztxOGgtIH7hRU3NbiuidVROXMU2iaUJ2kZe3256qV23lvB+6hlmd4kLH7cbueeoUot350jYm7g1h6g9VxTle3JLtvpEa6GyX2xpEbyfXAW4vCiGIAvdbGlagkVEuWERF6nUIiIAiIgCIiA4Grw4U1O9vG15yfsobM8PeHB3XlTvU8fiWw+zgf2KraaUeIG7fyx0Ky3lX7eQ2/nRaYi9Vel8GjrZviaYrgO0ef6EKmZJnSTUzC14IezJPyruvMQuNorKaBzXSujLcehVX/3fuYqqdklM5jGPaXPc4bQAfldqZpQezR+KthCpxk/n7FtW1gMTWHP0+nVSOzvY2sbC1mXY8zlwrWGkt2HORnOc9VKbXTBsvi/zHKraKZSujKK6f+iiumtNMlFOMQM+F6L8YMMaPQL9W4itJIpWERFyAiIgCIiAIiIDSvDd1ul9sH91UtVVeDc5ISwEDPGVbl2/0yqI5xG4/wBBlVBXV1JUtjmc4RTOPAd1Wa88uYvotfHdS2tm0+2U08Zd+YC4k+V5AyepwuLJYYm1Em6eV0biMNz9OPfv1UhpD/hgAchalVhzwCS3PbOCqp3v08EqO0zd05b4KIkwB2SACXOJ4H/qmlsH0sGewURpHmGmc6MAkN4at7SV3qbjeo4nxOiiYXNO7q4jB/6ypmHavXGL7f3I91cpJy+EWGiItcVAREQBERAEREAREQGEzd8T2/qaQvlPUdbW0V3pzE1j46eRzXsccEt6Y+y+r1TH4kfhtXT1U1dYmCpjkJe+n3APaT1254I/f5VT5THnbGMoret7/uXHiLqoTlC162aWmrtDW0jXwSA8Dc1x5afRK6qjirvEklY0EYGVXFPZLhYZ5Y6unr4S527M0bhjPbp0X7NM8y53PcO46rMWUafpRfQw4yfqT4f/AHZbtPc6aJn1hxAxtHdd/RErqq8l+0BrIncAdM4VT6Stt7u/gyW23VRjMmwumjMYDe7slXzpex/2TE58rgZ5AAcHgBTfHYl8siMmvwoqM/2qYOMXts7qIi2BQBERAEREAREQBERAEREAxlYCKMHIY0H1wERAZoiIAiIgCjgvtdC6oFTa53Fr3BnhMJG0dCT3zx0CIuk210S8SEZtqS2b9ovEdyiic2GdhfuzuYcNLeCCe3Of6IiJBuS2zjMqjVa4x6/k/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAEEAwEBAQAAAAAAAAAAAAkGBwgKAQQFAgML/8QANRAAAgIBAwQBAgMGBQUAAAAAAQIDBAUABhEHEhMhMQgiFBVBCRYjUWFxJCgygZEzQlKxwf/EAB0BAQABBQEBAQAAAAAAAAAAAAAIBAUGBwkDAQL/xAA2EQACAgEEAQMDAgYBAwQDAAABAgMEEQAFEiEGBxMxFCJBMlEIFSNhcYFCFiSRM1Kh8FOxwf/aAAwDAQACEQMRAD8A3+NNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNCeNCcaatfletXSfCZldvZLqDtSHOkyK2Ijy9a3kYniPDx2KtFrMtaRf1jsCKQD328A8YhuHn/hW13k2y75PssO4uxQURehmtqynBR4IDLJG4OftkVG6+MZ1eoPHN9s1jch2m+1UBT9Q1d44WDAlWSSQIrqcdMhYfjOejcDG5XHZipHexdyveqSgMk9eQOhB/n8Mv8AZgp498ayWpdq34VsU547ELfpkibkp/31g/2OD/rVqmhlryNFPG0UinBVxgg//wB/br89fOvQ5B+CDqq15aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaxc65/VVsno3loNlValje3U+/iTm6eycTagpjH4lpWggzG685YSaltrFWpo5YqTzw28jkmhm/LsbZjilmj1D6h+sfjfgVldk4y775ZPQn3Kr41tskYuNThR3Ni1K+UqRyLHIa8fCa3a9tzWrSIrOuc+MeB7p5FW/msrja/H47a05t4sRPKj2CFZoKVdCslyeNXQzBWjgg5oJ542dFaPnrX9VHWzdgxOzcx+7nTvbOcStLlLOyczlbGXykWTtPVp4SxmbK1rkOKREFzLTYivj57deaKCxJDTMla3HD1K9VvUndam2bRNWo+J0N4qizdi2i9Zm3cLPbNWDZ798pH9OGiAu2xthWWSNvpZpVjSRJ9q+L+D+MVlv7jTe1vV+jK0dVdyqwJVVIa6zzXoK6vIjzFmMFZbbOiSI0kSPLwkht7RrbW2DkMbTaxj4c0zD/AA6s0a1R3drS3RVYtD3yt41jRlnkkZvJMgEnbrDa7ng3jdwJum87fFfqTQraiSQt9JYmDtElpq3JIZ5PblcRs/uKivJKQBg11tt43aN5Iq9iWu4bhIwLe6Bjl7QdSWCArluBXtQEOQdSD7Nz+5cp0h3V+4u5oNv7lkw1mXA3oqVXM2IrVRHmapjMdef8PYyFkRPTpFo7RinlDrXsyKialt4f5KnkPgu5WPEvIUqua5kp7hRrQ7pYVK7kz19vqWWMU12YRyVa2Y7JWw4MdeaUxodU7pRhpb9VG77c9mFZlWxWsSy1Ef3BhJLM8XGRYYyySy4aIGNSGeNCzCxP0qddOve+bm4rGYzrZTCbao12z824aUOUpJkmrv3NUyNV8RdoxeSG0bMUfmAniaGPG1hEVXCPRf1G9QPMd28isS3HveM7M00ZsblWrsHYA/RiOzH9JahnkgjlktxyRuyzr7DVoGDmO/8AnPjPjmzVqCJCtfc7xJiiqySIUj5DmHhYTpIoLoIWypMbe570gKhpEMd1CVofPk8a8lJRwc5teY7qw3ciAus6Y6H87oSdxAKWMS8Ufcoe13H3KGHe4HRZGT3oD0be3uu4VlcD7lkFbnYiIOM8oWReQDSA9a1U9BwcI3F8Z9iypqzYycFfe4xSDAzlZORwcJ84rPB57Ebkx8eUwl+HIUZWeMTReRWSWM8SQzwzJFYrTxEgSwWIopoyR3ovI5ute1BajEteVZYzkclz0QcFSGAKsD1xYBv7ao5YZYHMcqFHGDg4OQewQQSrKR8MpIP4OvX17689NNNNNNNNNNNNNNNNNNWB+ofrdV6I7NGaWpFfzWSN+LDU7HmFQtjaEmQu2bTQ8SNFXhWNRCkkTSyzoTIkMczDCvUHzOp4F4nvflFyvLbi2fbbm4NWhBMk61IvcMa4BxzYpGW+EDmQ9IRq/wDjewzeR7tT2uKQQm1Yhg90gEIZnCA4PRIHJgvy/HgPuYahnxW11zOCzHW7cm98Xu/rP1iz1rK7lvYyaw2B29Th4rYrbdGN/FZgjw+LRcVE4jggjplfwtMEixPyf3nzqhte9eOerNvd6/knmnnG5WN5uwQ3Hhp7bt8kYhq7RQkeMvW+irulEzSKCY6yQrCkY5Sy0slrCf8ARdDbbG0+J+L0I6VRJ44jeu2eXuWdxtonOF2uWSbPthnIdvukP6U+bWItZrN1Z8zawc9wYz8NQp42S3flikWblaz0wkM1h7MUrtFLFAyQqrwykrJGy3DyD1PTeWrqz2GkllMtPa6RW29VyqIqBwTLZllRSxUgxoWkKheeTQ09uWjXmWvDYWNXX37VnjXWRV+4uGBMUSI6qWDSBmBXr7SuvDze0cTTyVXKbxo7iSpR3FtuLe02Pz+MrZDb2y8nJbgr26uMrz2soMgLy+Oew0Sz06cXtknkKax+Kv4f4vvtne9626O/Y/n+17l5FRsvt+60fGNlnrcTeTZ2nncbxuDxH/tbFSy+31gkbRVpL0TtXxybhuNYUtusRxB9vvR7VJFDZrvue6wFWas1/wBuJVrJExYNDKi2Jjkl0QqbKdSuneX2T1ayu0cvvDLZ/ZtmTH57a+WOXyiRZXbuQeOziL9TJRLIkfFR7OPux4+uGp5H8S3nSaGJU2P6w/xM+PenVup45sm11dzk3XaKO47TvEJWh43JtW6RmTbt12poKzSWY5I2ljeMxV4aF2CzVflPXZhZvEvCLe9UJt4s23hMVmxXtUGAl3JLlM8ZqttZZAkQWTDxsWdrUJicBYpCDlVs8pLjbdStbr1sdlpENrC05blnalqrX7lr17+N/GLPeIR5FnuXLdu3YMk8rkySOTiXgvqZY3VbRbcYah3izJav0ak9mxst0OzMn1NQzq8p4SyRSTpN7giZykcZYa8d6276KaJnrSzGqgWKzMI49xifALNDYaOQR4ZVdI/aWIMFDcggGvD37uDqd0ezWJ3x0ekzmIo+CSru7F7ckmy+DalVg76eTqYOyomNjHU/PFLNbkeedK1Sq1gEhjmljffN/G0tbp4Am97FNDbH8xaoybjsL0pKpnW7tG3Th5LEW3wlophemFj3ESqHV3WRv3tVXx7yOKba/Ino2ZSQ+2zXuNW4LDOFetPbjHBUsSFXCxRhFZ3mWPA4jI3aX1kdQ8RmtmZLLbh2lvnFbkr1hIm2I7Mkmbxk8UNtcpDi38mUjzFav3SJSRTL+HFurxJPAYUkl4Z66bjV3Lx7b/JvI/F/Jpt6iihik8YedJrPuQR2RYl2qyWvUboRi5puroEMsKSvOhiTWu7+ntSSvuv0NDc9pn2+V+a7mI/bgkSR4jA1iMCF67tgCdT9re3IQIpORls29m6m5MHis9Q7jSy9GvfqlhwTDYQSRn2AeCpBBIBIIJAPoS/gmSxBFPGeUc0ayI34ZHAZWH9iCCP3BB1pWWNoZZInwHido3AOcMpIYf5BGDr2Ne2vPTTTTTTTTTTTTTTTVluuXRrFdaNpJgrdt8XlcbbbJbfy8aCYUrzV5Kk0NuuxC2sbkKsr1b0HIbsMc0ZMkIR8V8y8Zj8s2G9tDTmrLYrzwwzmNZogbETQvFZgcFLFSdHMdiEjLKQyFXRTq+ePb0+xbjDdEIsxK6NNByKOwjYOkkMi/dFYhYc4pB8HKt9rNqAmx0Ty2Ezc8m1s/b2/FBfuLksLXklvYgTxWJYZGSBnRqfd4uTWLyLDEz144lEcY1w28r9JPEtz3izQ2ryC3sZrXbEUlORXFWjcBMU0lIpOzQRidWjeKeJkliRWDKwVUnVT8vkeksm5bZDdklrxGG6vFLUkWFaNZf6arYPEqwdSjBuyx+4nnJ7r6j7IjWht3aNOxmbCGK1uWOxHfleEOe2HH1rSQNRh4CmRZO8yyDueR1CKuDSeKepvjkr19k3Tat09yNFgv1ZKV65LCCDGIfqJUkroyhCV+l9936JACrqoSr45vYM+5Xp4K8RLLt7xy14+eBmSaSISLMw5dYfiqkgYOSepRs3s5JBldy4LLV91pXnrWcnexLWrNhJ2PlWO/BXldKrhzzUHEKsXIX7tYlH6f+p7X5t03Xb98u2LEss08vtXJGsySkl5ZvaWRefH7PtHaDs46FxafaakJp7fdoHbwyGOvHaSJYyijhiKWRVMgYZEn6m6wcjXt5dXbZd3A5OjkMvXpSWsrtQR0rRyOBvzL5LEOKlliQHFZQqoyGLYpXaeOG9XAsiUTZbuXjHke7eJHxbePHt5tQVJ5L/jcsm3Xnt+O3rIH18e2yiA52ndwsb7ltjFYGtwQbnWWO7HN9VaIJYI95S/Wt1a7TLHW3HFmusV6BCBC1oc8GzVDMYLIJdY2eB8xFDHb3H7iyuMpwMlXP1racdklfE3VkZSh9yeVIUBU/Ye8jknk+xzrBtl8S9TNsSBamw+QVrcMjcJYqcsauoBCy+5I8CKQCM5H7HHRxc7kW3WZpRJY2qas4OUmuVyqsG+FEZkf7/1dD4z3jA1crb3WDfDRGla27EytwgvZC9XxrlGHY7TUf8AHM5duD2BAjklO0K3aJXeA+ZesW20Xo7jtGw1lYKDue877WotFEw4SNPRijuvNKzYYosKhmypQq3Wv958R8aMgsVtzssQSTUpU5ba8/1KIrTCsqhfgFmZsANnIybyfTl0rwme3zgqwg8k0uYmu4rCUGfH4HANYee/af8ANGQZmWjDK9mSpjKEUBiVzWFxIER0kr6Eem3je4eU098uXK+575HYa1VpbPBNS2TbZWaSZphamUblcSE8xVgZYYokXjGTGiuMB898i3CvttiNVkjiMEcE1u3IJb1xFRIkDwRE1Y5XURiew7ylz95jDsQZ08XQhxeOpY6uqJBTrQ14kijWGJI4kVESKFSViiRQFjjBbsQKpZiCx6PRRiKNIxjCKFGOh0AOh8AdYAHQAAGB1qMjsXdnPyzFjk5OSc9n5JP5J7JyT2dd/Xpr86aaaaaaaaaaaaaaa4Px/bg/8HnXw/H/AIP/AIOf/v8A+xpqHvdu3623eq+86N9Zmx8W7M5YYQ8oYIrWQkuVizfZ2pLDZhcRSlhLGJJFMcahxxO9WNjqeO+sfmcO5pMlBPI95lhkjLRuFs2JLtd5Gj44SQWImAbAaM/e/ElxL/ZNwl3HxDZZKxjFltsoqysOXNoYUhlCqeWWVon5MCCH6wX+02WljoS5+Q5BA0UswCuftX2SPlEAYEDlR29pb7eQAAYy7VuQk8hkFy1OsP1LlGErphSzDOV45brAzjIAwR8HOpROu3A1gC6p2AM/d0D9pJKjv8fpyTg4zqsbq4NSBTrluByHcAglR74bhXQ/HAYtzwfY44O27XkMVRgNss2o0ACl5ZOYBB/45XPQAOWBODkEAnWPQQXJMmyyhmPQUYxk4ww5MrcT+Bj9gMknVsNy5PwShacLGTtKoBI4HDL8FVjcngg9pUMOf+31wbFd853qGRTDcsvlQAwkIRRkZYFI2B7BAJH9iAMHV6qbVE6cpuHEEFvtBJII+SWUAZIJBwT8571anMSZ24PCimKIdzKzyhXVTyPTqqEqpHAHv0eOfWrbP5lv97C/UygfhmJDlTjkAwVGBC5A6HZHXxi91KW2Q5kZFZicEBMgn84BJzkkEnP4OMdk+djKtunYVr8TSeQdgfyHvUHkKEkPIBDgcAegORwOeTedhm3C1ZieeSaRhxUGSRywOeKmJy7JkKQQwVRzLL0Tr5uBrtC4gKoP1FQigHJBwyDBIxnIzkkjOQMakd+i3CJPvqLIp5JIaNDI2v4i9nYzVvw6Ht7mJJktK3eT9xKlTwGUdM/4X9kWKabce5Ctd8P7YjCFkVf3LN7jMWLMACc8Bw1GT1Rtt9OtdiFLzJ9qnIKglwCQFAxx6UZxghhn4lW1NTWjtNNNNNNNNNNNNNNNNNNNNNRjfVPHTw/WF3uq1WtnNr4PKR2q8YklNinPkcbaDQ98YlMyVqymYN5I2hjJZk5XXKv+NPa6dD1Jr37avXh3jxzarP1cEXuO09Oa/Qn92IvEr+5FHWX3eSyRmFB9w+3Um/SV5bfibxwgTPR3S5XMUjFcJPHXsxFXCtw4vJIeGCrc24hW+7WF+5Z6quLUV+N2WRvsAVGZWYMvKsE8ZYHkcBgxVh3ufnn3uNKrC4t1rgmYyk8QpWTo5V2UdjkPxkkFThvnW8KCSnML1mReCgluwDxxjIzyK4HXRAIOBjShkp5QqBHZSATwVLgexzwv+pfY5JHpSSfkkVNTcbMzKksUvAlQJCjcHzjA5AAYGFzg5JzjkPn8Wq0SciskYbJwuQMd9jiTkHogdA9AjsfdSW7NwjGurIh8yntjkIPpQWAVufgs5+4liQeOGHDc3eQIrIypJISM/pKFV5ZC5IJB7yw7/sQPuPrSqe+h5N9p+4r1gHofjogjP7Eg95GrTZLeeSLkwRxBW9n0SVYAg8d3AHoKAQefQ9ckk1VUl5D/ANuucgjKsSSPksSQucgYAwCx7A1dhtVdR97sSM5IxgfnAx2MnPeAO+icdejiLOczoWOcMYARwQgRSxYH+/IPv18Dn2QSDtLxvbprM8P9MIARhxjIwQMAjoZyOsjPeeuhjO6PVphzGwD45AFs5x+/WfkHHycH4/Opkvof2vHitt7kys3L3J3xdJZS3cEh7LFqSJPgL3MYGdfZ4SP7uwIB1Y/h52Ndq8XnmZ2knsNAhLMW4RgPJwUAKEU5X7cHBVcMyhQIn+pu4G5uleJQFjiWV+IXjl2KryPfZ6bBwPlh/nOzUhNay0000000000000000000001G/wDXTiHbLbLy4hd1lweYoO8akupp361qP7lB4AFxwC5CqHPHs65z/wAemztLD4du6oSVqbrTeRVJKiKxWsR5wMEf13yD+T3851JP0CuIqb5SZlGbVKwquQATLDLC3yRnPtLgLknHY6GofN27is4jNxQ2J5Hq+QIsbD4PcCv3cc8hueOef5EcHXLuL6eWcmdQ3Fj9oyucdlz3jH+cDs4+O5j1NqWam0sCKJAOTNno5BVs4+BgZx+oAHv9ver7g/L6VzMS3IKFOtWtW5r92xWjhpw1K9cJLcsTgPFVaJLD2D5gqyyRtKFVfe19kjpX2rVkiksNMYY46sEU0jyTSHpIIkJBdZCgTCZCg8R+nGE2NluS21r067TWbE/s14Io1llmlcqkUaKFLyPJ3xQAkkZIHZ1jfvvr3sGbLVqkHUHbM72vB+CQ5evFI8ssbRJE5ljjgksGacLCXZYCTBH7V2kGZ2PBN4JlYeObjHGsbfUEUZWQxx4aSQFWZ1iCxlmwORIcnGMay2p6f+aVqktux49u8cVXnKzmFCY1QHkzIjs7FQGYkKSAv5AJFUYLISWXg89dVmaNJpGnIUxiaQuoEa/+EbrEC3cQyl2PPzj9LaNmWwQ1hlYsqIqKxQOqAMrHiQct3yBGc4x13jW4SXFgRo1DKVY9uoaQHJXGGBU8ScAjPahs5zrIbAyTK0LQlXiBThmPYqqCOCQDyft5PrgH2R+pO3vEtod7FZIhEFLDkWcIABjJxnvGCOPyR/fB1q3d7Kgyc0YN30qkkkhgQcjAH9vwT/rU430k0/D0rW4wAkvZm2xYAgOtetUhVgf1UN3qCPXA9a6neltMU/FKqgLl5GYlQAG4xxIDkAAj5KkADHx11qKPmk3u73KOwI41UBs5GWdv3wPkHA+O86yh1sbWJ6aaaaaaaaaaaaaaaaaaaaaw6+sKhFNtvaWRmnjrQ1Mvlac000gjiWPIYtX4diQCS9FCi8Me4cgeuRDz+MraTf8ABdktGVIEqbpdrySSyLFEEu7ezjmzsqljLUjVVOSctgfJG4PR62YN43CBI2lknq1pkRI/cYtXtcT0AWA4TsSRjPQzkjUFnUzGVcllLH4eaOy6TntauGZCA/PcJO1VAI5I4BDck/I9cXro+nsyGPgzK5XIbJ/U3akMR2es/GCO8EanvsN6WCogkR4laLtZMjOVIIIOT+Tn8g4+BgmlOo2Enfor1CiMY4/czLMzMSp/gwJKCR8ejESefXo/PIGtp+mFqeHyrxp2Ycf5vUT7jglZGZCB3jPFwAOgc4OPzU+LXYl898YYMcHfKagdZHvMyHvGcZcd/OB3jvUJXVncIuwYLFsbD2VuYRbcrRBQoOQCzyRyoy+T8UkEHljeJGjWSvw7xrGBNupW9m7btqyBPYtCMBircvZ5KCD+gJzcoQ55ESEhWZhqX+1bQa9m/bIhMTx3hCgYNkmD+nG0bKSpiMk5V1ZgzB/hmfU42IwOGzGFrzUcgqXIn8fcYwHiEaMTFIvz2swZlEnKrz9rKeVaIlSvFNGs0NgrIWLSRy4Zf+WQpQHPYwS3WD0ygENz63HcbtS3NFYqloG7Cg9HJA5g4wMEjtSCfypzkVZgqObhv1qbXI7MYmii7Vh7V7C6kcFgCw4PyDwOQF98Abe8K+obcasDSpLmaIf0wfywByMZJUjDAjkRgjORrEN2lpSV5JVrSROY2bLOc5Ab8ZOMk/PyCe/77Dv09YpcT0h2dAAA81Ozck4IPL2bthu7kAc96qrc8D54/TXWrwuutbxjaI1XiDVEhHXy7sfkfnGCQckE4ycdww8klM297gxOcTcAf7Kqj9z8HI/brI6xq9Osp1Y9NNNNNNNNNNNNNNNNNNNNNYnfWfAX6KXbgjLnF7gwdoleA6LYezjWYE+wA11Ce3g+v6ajH/FzTWz6MbxMyF/5fue02zxAyoeaWkzZ/YfVAn5+AcZA1tP0bl4ecU4uQX6qndg7BIJVUsAYHzn2CMHrByT1qEBoBLZ84SJ2mYrIjD7eTxxyFPLMrjkswIUFgEUgHXDC28iXHHEtybkqk4+WJB7AYHB6HRYkZPyDOd5MQ8S7JwXIYdnoYx3kDIyABntfk6qPcm34d0bG3Zt2nZpz5K5tjMU4qK2q4aKxdxkgpixCrl60Vl5oOJpgoVZUkZikiE514tO+37rsm72zJHUp7hRtvII3MQhgtI05iyoDtGiyFuLEngwIyDqz7Puw2ryPaL0wlWvU3ejYnlCO7+zDaQzkdcnMcQduK9sVKgZUjUIvUnoh1cyc2H27X2JulJq97FpYmt1lrYaCtTu17Lh7cjKiCgnmsmz5pK7qLKRLIhpFpbf9f+FVZLe4P5Hs7xtWsmJIpnlutJPFJEgWBVLs07+3EsXBZOQiMhXE3Gae3eZ+GwTXt0PkGzNDJXtvGkM3u3WkmgePAhX7maZQkYiEayriBpCjfUYkKx0V2vIZK8kipJx4p4nbxyqw7w8ciniRHQ8huWLKysGK9pMY9ssMxVORVlyHQnBBXCsCvLkpDDiQV5AjBAOVMVLogkUM4V+s8SA5GQcDIGP2+MA/jIzq/wB06jsTZTHmxM0zCeM9r++OODz67S3sD7QATx+g96kJ6YqH3jblGX5Woz9wP/uVs4BDEfaDx7LHBBABOtT+VkJUscEEarG36QR+4wPx388gRjrI6Gdkzp3Q/LNibQo/Br7cw6MDwSHajDK/JHonukPJH68+z867AbND9PtO2w4I9ujWU5/cwozd/nsnJ/JzqDO4SGW/dkP/ADtWD18Y91gMZ7xgDH9tVnq56o9NNNNNNNNNNNNNNNNNNNNNY0fWGn+W3qtaH+rF7fhzIYc8omJyuOvTuOPf21opyeP9/Xo6b/iB247p6Ped1QvMrs31SrjPdK5VtMfj/wDHE/8Aj56xnWw/ShxH6h+LZOBLuP02M4DG1XngRT2Oi7qOzj9+s51t8Z1Lx5yaxXLndxZIfhwrBS3sluQOGALAGQfC9g7w5PCe/sLR7ifejb2jIQzKcEKGPyQCcDrsKR+5III6OWdlmakXhXLe2MZUEE/IH+vjByfkEjONXkxUW2c+tp6Oby2FkyFixkLU2KypqxG7PUo07VySPskMtiStjqTJGzPDWtQfioYUlkZ2y3aLViRY9uirbQ8NaAKJb9QyGOvHJJKkYcyAFOc8jfYvJ0YxMSigDXW4UblSQSSxNKVIjWMrjOSxUKABgAlgWJBKn9RJIFo9y7Jr1NwWWs9RstdxUtHFQwVmZ1vwTY/Kx37MU072XrT47KKJqt6r4hZeq0SLbhSJop6vcLVVFiSOjQFmOW4ZpIIoxDILFZ4I+EYRJVsVuQmgl5mOOUnlE8j84q+ibrwA/RshLHpmyAeJwV49ZUgd4+RnABGvB2nsHZWzQLGKzm48gRhYMNUhy2UjuU4MbVsRyrHTowV61eF1swnmQR8wo8kFRYKsxhH2zvNvcsLPFQiJuPdkerUMM01mRSjNLM80sjqUcdEjkVWSYvIOeql1uZZZIgoH2/JyCOwfjosMH4Of7EHOQ3Row5HduHpRr5RZyVSBF47iTPYigjXhSD7MgLKTzxyADxwd/ei1Y2PItoVlLFrdcDGemdwoOQRgAsAe+ODyALAY1952rQ7VckJ48IJXJHS5VGZm7/sDxx3y7ycDWzPVgSrWgrR8dleGKBAAFAWGNYl4A9AcIOAPgetdg0QRoiL+lFVR/hQFH9h0Px1qB7MWZmPyxLH/ACTk/wDyddjX6180000000000000000000001Zn6jMPNuDoF1qw1aGWzcyHSvf0FGvAheae8Nr5OWlDEigs8slqKFEVfuLMAoJ4Gsc8v2xd68V8j2lgSNx2PdKYwCTynpzIuAOz9xXoAk/A1kPiN8bX5T45uJ48aW+bVZfkQBwiuwvJliQFHAN2TgfJ6GtBhOuxyDw2mkarYaNTPE5McisQjGNwx5EicnyL9zB+8AjsAPIryj09arbljC+4ORYMOJQ99cSVDHOBxYgAAY49kjsRsMtW9TRwpVHXHtumCjFfhguVBDHH4z12cjWYHSrrI9nDxFrSSfav+qXgjtBC8OzcngH5Zm/qQQeNY2/GJqcxUwuPu7+3Izy5HITHEfOQqgAAccgAizb3s8Ek5IXA6xxGQR2D0Fz+Ovzjs5B77e5+qsxyagzQqrKH4EsYPIJUkDk8qRyO37OCO0jk8Gkk2BnUOsZB6ByveDk4bAAJVsMCM8lyQOWTryo7JD7Jyp6yAQrHs5PweOOwck/Azjoa+6PU9JGCLcRXVeZP4i94B5BPpWBD++FcqffoMy8r5VtlkjdcxMV5BeRXr7TgAH916OcEDrPzy1TWtjXiTwwO8faTno/4III7xkD8fODID9D8x3n1v6e4uAGdW3FjbVpVBdRWx8oyNpiSTyqQ1Xckn0q+1AI1KH+HrbJLXn3jsATCreimlCrlvar8ppCcgYCe1kMRj8EZbOo8+tMY27xLeJmIVmrSRJ8j+pKfaXJGMBmkxgD/l0CAQNn0fA/r7/wCfeuqg+P8APf8A9+NQD1zr7pppppppppppppppppppppprr268VqtPVnHdDZhkrSrzx3R2EaF15/qrkf31+XUMpUjIYFT/AIbo/wDwTr6rFWVlOGUhlP7EHIP+iNfywfqJzy7B657+2u9r8saj1C3nhHpDmFfzHC53I1L1VEAEaGKWnZYwKVCMsqxDtjAEHN82KW5LueanuSUZJIpiqge0qTvWWQgDKnlxiY8Sob9WOWT1b8N8gqUdu2GOS0sabtWhlphmJaxJLTS68UbMOBIh5yxoXR2QEqCUwKk6O/UJkxBuOlZxWSglwVzxU0jkFj88ryRB69vH8diAzfDxyyKYmDAvyGI11vXp1XH8psR36bw7nBmdyfbG2TI5WStaXDsAhyVkSMh1yVU5AORReWPes+QV5tou159ksiKsrNHIu91XiEte7t0hMUTGQMUeGWQNE+VkfIZlrvcHWvISLWyNuGehYMPnlx5sJPZg47iK7vGGR52QL5RGSBITEHkYA6x5vB6v1UlSCVLUIlEKWxA8EMo6HNVYqViDZ4lwP6Y5gLnjrKdp3EybbFbtVWpTSQmWSi0kdiaBiOSwu8BaN5+IUlY2ZRIxQOwHI/hsL6gJNyZSlhit7G5ZqUeUtYyyhnmx1B5vFA1+eAtSgltqpeGt53m7XZmQCPgeu8+m38qqSXlkrWqCztVhvQnilu0qB5UrxSGOxNHAcq9gx+2HVeLHrNBtvlO27rZ/ltitapbuKA3KxtViNXsUqk0rRVDesVzNSgnslRJFVWw8xj/Wi4YnZg/YzLlNy9dq+SFNpqOA2durJW7neWNUywVMNUEysh+61PlHEScr2+Et5JCAo2j/AA1bHDH5vJaJcz0truWQAMrwnUVG5Y/QqmcBQQCzccFgv2xQ/iftfT+Pw1l4iO5uNWLBIBDRc7QKDPJyFhPNxhQGI4gnW0dqeuoLaaaaaaaaaaaaaaaaaaaaaaaaa4I5HH9iP7g8g/7EA6aa0r/2r/7Bfr7Y6s9QvqD+kDCRdX9kb/3Dm9+bg6Sw36FHqPsjcWevT5fcEW1q+Zs0cdvnbFvK3Ld/F1amRr7sxItvify3M168OQOg/MfTrdUv2tz2FDdq25JJ56SyCO3WeVzJMsXIhbUDyEukfL3YyePCQANqYHpl63bA+0bd4/5hKdqvbZDBUp7wYml2+3BWjENZrJiR5KNuKELG8pjatKE5+5AXaPWuzJ0a6udGs3k8f1K6Y9QunG6qSSQSYTqBs7du0pFlg7iqtXzOLrxtH3cJLYqicdvLeRgANae3GC5E8W27lt+41I1lLyGSh/WRR/6hBlSMvxUFlQsIs4PIBuWt9wbhtd5Zt42bddq3OZ6xiheLd0enK5B9hZFrPKsPOXijSrD73H7eL8QNYxbw3zuzIbpxtOvfrYuxj7qfn2Oqo+TjmRu2SCvFbkihXtmi58qohmiDqWYMAGy+hs3j1TbrVhoZ9wgt1nG1WpSKcyPkxyTSVkeWQskvSFmEcgUqFI7GJP5H5lue4bdTqXqOxzbXfjfyWlDnc4ZoGAkgrwXp4a8QWeEN76Iomr81LN9oVpEPpi6H9e+ue4aGI6TdEep/UC9MlQtY29sPPz4pwWRBYyO6ZMfW27SqKS3fNcysFenGjGaZVIZ9c3PF993gMmz7VuW5OZSiJWhcxoztlsu59mBR07TSvGh+W/Gtozeb+MePx+95H5HtG0BohI/v2oDYcKrBAIYuVieULhVhWOSQE4Ve8a3sf2XP0Tb2+lLpvk8v1ZGFqdTN4w14bO38FcTKwbWwkUkdoYzJZuEmllczYuRxzW/y0zYyhHDHWqXsgzzWdb/9GPTDcfB4Nx3Tfpa53rdkihFOo5lh2+nHJ7phlsElbNuaYK8zRAwQqiRQySZkfUF/XP1O2z1A3qtB4+lo7HtfIxW7iCGTcLTrwNmKtgSVq6plYlnxNKWaSSKEBU1KnreutEaaaaaaaaaaaaaaaaaaaaaaaaaaaa4IDDggEfyIBH/B0011bdClkIHrXqte7Wk/6le5BFagf1x90VhJYyOP0K8ez61+WVXGGUMD8hgCD+4wQR3+dfpWZSGVirD4ZSVI/uCMHP8AfVNJ0+2JHIs0ezNppMjB0lTbeEWRHHwyutAMrD9GBBH89eQrQLjEMQx8ARRjH/hBjvvrXsbdtsg2bBB+QZpSD/nLHP8AvVWJFHGqoiKkaqEWNQFjVR8KI14QAD0OF9AAfGvbA/1+34/H4/1rwyck5OSck/nP+fnv8/vr9NfdfNNNNNNND/8AR/796aawri+pHqpg5921929CN5XpaObz0W3G2fhc3bx0mCx9mzWxNrIZC3BZs358moo3nlxeJrmKnYuImKltUYIsni/883CE2FsbRacpLOITWilZPZRiIi7srF2kHFyUjGFLARlkAkkJJ6SeFbjHscuxep3j1aOztu1tuo37cNuhtR7pahimvQ16sE0MVaKoxsVVjuXZQ88ddmvLDZleldrpF15w/VjFbfu1NtbuxNnNDPRTLe25mExmLvbZsjHZWjk8zLSgoUbrZKK7Vp0ZpTZmejZjYLNGYxcdt3ePcY4XWCzE0omBDwSiON4G4SJJKVCI/MMFQnkeDdAjGsG879NL/g93dK8+8bDeh287W8Zrbvt73btbeYDbo2qW3xWZbNmsKb1p7FmNBDGLUTAtGyyH/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHQABAAICAwEBAAAAAAAAAAAAAAcJBggBAwQFCv/EADkQAAICAgEDAwIEAwUIAwAAAAECAwQFEQAGEiEHEzEiQQgUI1EyYZEVJEJxgRYXJlJTodHhscHw/8QAHQEBAAICAwEBAAAAAAAAAAAAAAUGBAcBAwgCCf/EADkRAAICAgEDBAECBAUDAgcAAAECAxEABCEFEjEGEyJBURRhBzJxgRUjQpGxM8HwJIJTYmOh0eHx/9oADAMBAAIRAxEAPwD9/HGMcYxxjHGMcYxxjHGMcYxxjHGMcYxxjHGMcYxxjHGMcYxxjHGMcYxxjPLJdpwsY5LUCSA6MZlTvB1sbTfcNjyNjzz57l55HH/n9/7ZzRP0ec7Yp4ZhuKWOTwCQjAkA+ASAdjZB+QOcgg+DggjyDnbznOMcYxxjHGMcYxxjHGMcYxxjHGMcYzBupeuK2BsLj6uOuZjIv290NT2kgrF/4fzdh2JQsCG9uKKWQIdsFJXcZu9SGq6xR60+1K1WIgojjDeDLI5BXgg0iu1VYFi87W0W2EMjSxQRi/lIWLNRo9iqD4oi2Ki+BeYkc71fl3kWxHBiqwKiOKo84kcMdbawHikGvH7KxPkL8cxPc6tOzBooteMMAoV3LupvkuGBH+x+rocZmCHp8IBDvOwFksF7B/7eQeLNeQK55zh3zNOOWKiayGSYpLkZUQzpI0CzsIUdAkjLG+mnkDopVkILjY5Z92NXhgCJ3HtOw1FwzRq5MYKhXChqLtYUrQBYhhwE1pCJJCTQBEKilK9xUBiCaDUbCdt2ASFvO3BpaozpNHdt3FLNIZ7EjOpLN2dv1fqGJtFtLtfJK70o5xpa00Dd36vY2g8jSB5n7uwEBPbQNTmIkFvtR3EqaoZzsyRyL2+zFCUUKUQEBx57jRIEi2B/pPA7ubI+ra9S69LJPjLWBy0TxwLM9uR6MVOQHuJNWSWyr2kAXZeBHVSfbJ9wFBE7vrOHS6u/SZOjdZPswRzS9QaLTh6aRIGIEE0+4ku12KAZW14pEjJ7CxkBTOyDoMmxpjcj3tEqzlEgDzPsAg1/mxpARCT/AKVkZWYUaAIOYf8A7ys9aykdahNjHWeT9CmKFud2iJPb3TB00O0dzyEhABvYBG4Uerep7W0iaR1H94q0MI09iUspYhf84OlCgCZHCryT8QAMlD0DUhgd5xMBGKeUzwoAwrutCp+RvhBZHF2QcljG52WWGL+0YYo5z297VmLR6YH6xG5LgKRp+15AuwQSOX7S2Z5IUO0iLNQL+0bSvtgCWIA+wGevz95WNjXRJGELlk47O8AMb+iQALI5FhbHFXmS/PxyQ85iY4xjjGOMY4xjjGOMZDvqh1fkMC1ehTk/LixSe17gOpJgsjxSKh+WWH9IyInz7yNICmgcPekmi1ZH117pVA7RXdXPLdvPcVFkCjzzXGd+skck8aTN2xsT3H9gDxfFWaF2KvyMgPof1Hw8lzJVbuZqTZufJT99SxMILaI3Z7cSwWlhsS9qdoLwpJE77VJGAHbR+heo+nvJua+11KJuqfrpw+vsMdfZAPb7aJDsrFLIvbQV40kjdgQjEAKLT1Dpmyq67wajjTEEZWWFRLGDz3FmiLqrE+VZgwAsgeTK6568bCoFEkTRNNG6sVYxr3d6MoRu11IA02vkaK7PJt+pbCze2FVlZS6MpYkhbLKQBSsKHx/BAuzxhR6UBj7vlfeFdTzySDYs8rzZ8/785jd7rynKtyKe7VpSw2DiKxvl44JppkaSWQI4AmaOugWQBmjdXKjvZWQVp/Wmgp2Y9rZ14Pb2x06Ntmo1lndXZkUzmNZGWIMXMbPGVJHyYMolR0Ga4Ghjlk7ov1LrEb7FQgAMUBKhnIK2Ay19WDnzcHR6hqWfz3Tedmhxstl3yGNte7exTmVYyWxkV4LLTZB+oj0LMVcH9MwTISq4PSem9U1N6Td6B1bcj6VLtSybnS90PudPMkixlm6eu3/m6qgEyxtozx6wLdvsyqSq9u5NpTwiHqWnE24sSrBtQlYNn4dwH6ow/wCXKTwrCZGkPb3d61n0LmCynUc0sGS6jzcMKlp4YoLMNaaG0FKocfI8Vyv7ZQ6mIEEjtr3YHRUHJibQ2+qSvHubmy8HydUSRInjcgqPYLrOvaytTMPaZjYZGUADCTY1tNFfX14VkIVSzLI6Mgr/AKyho7IaqHyUDw3II7Oh/TSbBZexmbHXvVubeAx0osVkYMBFWWqsIEMLW6uFrXZoWEemi9yN430XmkVigxehei9Xp2+/U9fqfWZZ4400zrbH+HiIwQx9seu8iaEczQhFB7VeNwat2UBc7uo9dl2NddR9LSRJWaYzRtOX72a2kWN9h40kBJpqZaBpAbuQaeWkbNNj6sK2TFJH3NXkewkKHyySSJF7CvHvskAkKqyj7+BZIOoSPuHU140l7Cqu8TNJHGrcFJHVFhDJ8lYB2AI8WQMiJYI11/dkkIY8gOtOzA8FV7u4qw5BZBYY8+CZfqCQV4hK3c3b87BIUk9qlh4Yquh3ffW9n5NpHgV+BkCfJ/r/AEz085zjHGMcYxxjHGMcYzGOr8Fjs/gshUv0YLjLTuSUzIn6te2K0hhmryjUsMokVPqjZe5dq4ZSRzrlUMjCrIBZaJUhgLUhlII5rkHxxn0pIYEGuQPAPF8iiCOc0ywdbp/KiGO/Sx95DGqhcjTr2mjQ6JCTSxtJGf5rpgfjXk8qO7/hGyB/iGvqT/Egnb1o5StkEgSFCVN+SCD45BFZN6770J/9PNsQdpH/AE5WQE0KtQQGHjm6N1z9zv0/01gxV9mt7wh7R2QJkbUkKaHhUEshdVAJUIJewABQulXnxrw9IkHtwSS9ighYY9xnQDmgokLMoAr4hu0cAL2gAd0uzvKe51jLk/zvCit5BBJFBjxwQo55vnML9RfS3o/qmOvFnMVdsrRaWWsamTtUnheUD3T307EDuZe1e8v3b7fJ3vlP9WekPR/qOODX65o7W4mozywLHPNF7bPQmfu15ou4PQLFybqwRZJmOk9d6x09pJNPYgjMyosheNHDhf5QVkRxQs0BVmr4GYhkctF09XipxWMvDXqxLFBALUZVIo1VEQE/4QoX79xIJOySeSUfUtDQgh1Ip+pxxQxpHDEqIVSKNVVVUkMe1VAHNG7PNk5jyLPsO0rpqF3LO7kSFnZjZbtU/kk2RzdAUMw1PU2pWmZzPPsb7veydaEdvydiUlNHYOtrv4I865g7HqHo8NzST7Qqmdpd7V1FoE8ky9q0OD5HFEGqz7XX2XpAkJokALryS0L8AAk2fwRd15yT+mvUatYqyWlt4qGF9RvPPkZcgzgDtKJFBuLZJ0fb+hye0sft1p/EfokWu86b3TmhJEaySdQfeeQsQgREhUoxNhbUlGIoMOa6X6TNJIqdk3etHtj1/wBOo/BJb5DxyP5hwayWuhb8GdtRmKb3KsDM/sw14qlR+xWI7oE7jKA3af1GP28A7HLV6X6ueuVLHG0WollV9tNdGCil7YEJIHN/Mk/svjMDqmr+iT5UZX4JMjSOLIJtzRB88AA3d35yafj45e8r2OMY4xjjGOMY4xjjGcMAQQdEEaIPwVPyD/IjY4IvzjK+IsdYwPUeaxM8bxPRy1+sFfY/SFp2ruPkFJIHjkjI8MjoQfIPNd9VgZTKjADtkfgj/TZI4r7FEePqjln1XV0jawbRfPjuAA5A/BB48nnJw6TnYlB3f4T8Ej7/AH8/9yAdDXgeOV/SULO3xo3bVYNkkAfGwOTf5ogV9nPn5h+7VlFj+nP9j/fmubGYt6j5e1j2doppV0pZlV2BZQpYn6dDSABmHk+P9Oa/9byT604kgeYFST2RyuoK0xZvgVJ7QAxF+BdEmsmejxQSR9siIbXyVBoggC74s2aNeTXnnK3vXn1PzjrLDBblijRDH+lN2MzJ89hjIJB2NPte4Eg7I86Q9T9X6v1tlhfa2I9dVEZEWw8cjmKmZ19pgWBYL87VpVY+a5tWlpamqPc9pGdiWHcvd2g+B8r+X3Q8V9c5XRnvUDqOS9MrZG2yJIwaQTzlSrHwwBOz2nQYgAgFho/agbfSkfuSXYeUq3ykaaaRCr1Q7ZGvigpYAFbcMCCoye154VZSsSKfPb2AEEfRI48WeQbNUc3I/Dn1xfyaVqVmxZsSvNCsadzuqKGJUfX4+PqU70w+ATvcv6S6SV6xAlOYvch7QSXWII5KBe8AiiSQw83YujmF1hk9qSQALSEkigSxAFmiCefIqxzd1l3norjpIMYbTqwDQD6m87aRgQB5I32hydfckHn6C+i9Qa+hGVXj2lF8jkhTxZAII5Pmv61mk+uz+5P23Zu/7D/g3xzfAocDJ15dsgccYxxjHGMcYxxjHGMcYzST1mgu4nrvNX6CCSSzWwuTEBi90SRitHUs9qBlYsxpyMCpDdwPg+d0P1Y8+rDtbGtEZpI1inMfYZC8akCZEUUe4oCy9rA2KpvGWDo4ileKKVuxWEid4Yr2vZZCx5BUEjyOK+vvKum71mOGKeCj+ZkdElESTrXd45FVm7feQorANvtZ12QVJU+RU0mmjb3YdQbBZQ6RrMdd2RwGH/WjZFYdxIR2HyHaxQciY9tHVo3lMYU9pcx+4oK2B/IwJFryQDXmjzkS+uvqJ0507Sd8vBlI53ZYvyNavVs3O942cgwi1GWVR/FID29uwd6I5qn+JPq3onSIlfq0PUtZ3ZYxAkEMs3cQzAke6iuAPj3oWAUAXYIFn9OdH3txuzVl1nCKx73ldYyLo+Ears8HkE3+RlZ3qznun72LjyyR5yOC7XM0CzYyOOyqdz7WRPzZCAuCwXZABADlTsarXqHRdnVg2k/xdIdiL3YC3TolcRgtQYnbHaO4sQKAII5IIInZ9fcinbWJ1i8blWqd2Qk1ypMd3VAi/wA0ARmhKdSYLI5e1E2CzwiqzyKJLK1KSW27wewOXmkKEBgG7e/QIA32k1htzpezNIo6f1ZBCzFmmbT1vfAJNM3fMwVQpCtQbtIA+jkh+k2oI45P1emWlA4jMsvtVa/y/EXZuv5T55+rEvwrw0pspXNDBUqhDKfdsTz37SDQIdTKsNeMgaA/QdlP8IHL96Lm1v8AE9RYNCFfmpMu1PNtzKBZBRWWHXQigFJhYoTx5sQ3V1lbXYy7EsgYAdqIsEZLcEkKWcg/Y7qP9ub5fTuF4una7SKVaQIe0gAgCMHRAAA8sfA/fevPPcfQgf8AD4WKle5VNHg0FHFfVX4/JOaa6iR+qkA+uD/Wzz/fjk8nM75MZg44xjjGOMY4xjjGOMY4xmrnrlR7eqOn7ygx+/i3h71JBZ6V13UEggFfbtaKnY+ryPPK316NT7Tm7C2KJFFSeeCLBDEEH4/kXWSnTXYM8YAIIN3+CPH+4u7B/wCD4enZiro7HWow5Hn5Gj41514Otb+AB8+aI1Cckmh3dx5HN+fPN0L/ABf5ydUExMoA81+LN/k/1+vPj64hr1c6YjytO3O+Px1uKylmxVN6GtKUaJa8VMTyvB+bKz1YGLKJR7duXvnAC9xoXrjS6b1fWjj3tPV3tdlWWNdmEuBwWDAkd0RBrkdrDgDtLcTnRptrRlPsTSQOB2t7TizZrkD4txwQ12K4YjKvPXnH5qtDZlMVlKlRWkgSRwrRQxVe1UlJQRyTRo8qxyd/tnVdUBHe/NTbmvrGMxIqrQMYjAPKRJSKKsogTsUKhAIHys2DY1mLOhLqzdxIp1J+RPda8kt3AkkmweBxxmjFaKeeasbADWpJBLIjlh7aWG2sZVPoURqyICTrxvZI2aVLHqPNMvuEEEhERQFjBAj5JHaR3VbMKI+vxK90goItgKoJYi7vvNA1R+iKsCrrLW/whYfstwtIqq5MQbQ+Se3/AJjpUKkFCPO/kgfOwP4eaN9WjJBBVqoUbLMoF2eFK2VItr4J7cheuS1rEgnliVBoCgh48UfkCCD+KAoZeJ0tF7OGqrr5B/ooCDyfnwvzz2501e3TgH/ygi/x4/Jvx5+805tN3zyN9k8+fP35/fzmQ8zsx8cYxxjHGMcYxxjHGMcYyCPXKn7lLp28FP8Ad79yqzDwQtuvHKB8HYLVNAfueQvW4+7XVqHDEV5uxf8AY2Dd2Ps1mf09u2b65H39+R/yQb+q/vkW4SbtaJgRsqq62D/EGUDXj+L/AD0dnx861rs90cpbkckH7BB/rZurFCx5r7yzQAGwOKJq+PqzzfgA3zx455ByLfxLZm/hvSX1LzeKtNQyWD9NuvMvjLkI3NSyGK6RzGQpWoQyyRmatagisQGVWj9yFe4EbBp/qJ1maNCFq1BUd3K9y2O0XXHdVkAlTZFULp6I0oN31P6d0tqIbGvu9f6Fp7MLkiObW2ur6cE0bkFSRNC7xtRBKtdg5+GL0r9Zsxls3+EW5jfUz1Fy/XfWXqb0rjvUIZfr7PZ2rmMbdGYj6orZvF5OeV3iyU1FYoHyj2ocmlzKXMe7mjFLVrHWNWFOmdRc6muAulK8YMcY7JewOlSIquQoFFlYeBRNkZ+pX8V/RejrdM/i/Bt+mPTut0Lo3pnrGx0A6vQun6cmlswDUfpUult60KDv1I57lXV7JNf2taLYVf1DJLcvWWWfNICZe0SAIq+V0GUICfpZiO1DpiRsA+WGzo6ab23NEhuPCkk8gKt/EGqXgmvBUdwo/mxGi82osHk8gLwxvw1CybP2Lv6y3n8JOOdFpNIPIkiVfu6AdhG9b1ttnRPk/JI1zb38MYi22hYX2uqrY+QAJN0OBz9EeQDlS9Qt/l0PvvY14+gALAPg/RBo/WXKYRe3FUf5wK51+7kt/wDf/nzz2NqCtaEf/THnzzZ54H/7/AzUkxuWQ/l2/wCc+pzIzrxxjHGMcYxxjHGMcYxxjIu9XqpsdHySaB/J5HH2d62QGkes37nWrA3/AOuR3VF7tR+PBU/f5r8Ef1/GZWm3bsRn9/2/7kD/AO4vxmoYxGUPVuGztC7NBDDSloZCptmrWqxkeVC0fd2ieKU9ySdpZUBX4OjpXqnTdh+vanVYNmSOOPVk0tzVLs0GxAzvLEfbLBVmjkJKShO6rSyDWXzT24B03a0pYUaRplnglHb7kUlBCAxr4uo5BNWPAJBGMfiVW3lPRT1XxtWs9nIZX0z9QcPjIVZUFnK5Xo/MY3G1UkkKRLJZuWq0AMsiqob3GIVSRAeotjW04n3NqUR6+svvTOwLLGkbfNioBdlVACx+VKpYfy3lp9BzR6/qz0vtzyGLW1PUnQNramINR6ut1fS2NiQ9oJPZDFI5CgsQO0AkgZ+Jr0D9G/VeTrL8JuLteinVuFs9B+oWNy/qT1Bf9Ich0vXxWP6VwuUWhLb67tYalFm1iS7JVykE1z3Bk46EVAZWJ1sCsdT610nf6H1CfS6lqbkM+u0EZ1545v8ANfspWCMWDWB3AeL7j2gk5+nX8ZvWfpJ/T/8AF3d1/WnSd2Hr/p7Z0PTXT4fVuv1Kfa2eqbuq2xHB0GPcmfSDGFZNZ44Qp1mnec6xX2zdRi6BOaErEbayukA2F23cN6KgKCNEB/4wABoE80tsAhpHkdW73tVW1XyW+XbRoMLIBrvArhTf5vRMStAGwh+RqifFCwQSe7j4/wAh4o0RcJ+GGk0danLEpYlI2UMQocpoMY9he1CTsIQdMCQxUHW7f4W0J+6MWzEV3Gg5jB7vbNAopZqCkUCDRKgHKf6gICsDwAGJK/V12hhyL+PkfzKQCBWWx0o/ap1Iv+nWgTz87WNQf2+/8ueuYR2xRqDdIov8/EZqlz3Ox/JP/n/lf0z1c7M+ccYxxjHGMcYxxjHGMcYzEevKxt9H5+IKGK0HnAPnzWdLG/8AMCI/+/jmNuKX1pgP/hsR/UcjzxzRHOdkRqRDzww8ec1Mqt2uo1o6YgDewA37jyQfkH7Hf2881J1ZzHI57gCLNmh4vkH9vweCDQAy46o7z3CiCovxRJF/X35FGxR+ryIPV30qPWr38lU6y6j6btXMPWxEv9lQ4y0sMFWHLRh6bZGtY/JLY/tZp8nDX9uPJ2MfiHuSS1qklKzRurtr7upNp7WvHs686yRyq5ZQ6uArlvaILABSBZJUOSoDUTN6LywTLNE7I6drqyhQysvcVruuiSf3NgA2LGVx+ovo3ncF0/m+mL3qZ1Jl8FaECU9w162VjT8nPDkBdeEQ1XlmuTjI1bNJYZg0SRWTLFDXSGgS6fS+iaMGv0zpmrrrrmSUxpYT3Gljd5QpstI0YIINgKCFKkHulpJp92R555GZ3CgOwFle1gUDAWF7uTZ5J+Q5oQL0jhXxNtqt3M5DPTtkbNqXIZM11sFpo60Swqa6qntK0TTNGuw1iey4AWTS666rIs8vwihgVfiViJCNbMQ7O5LF2R1VwxKkxgdvBZp7UQiPksSwHLLZBAAKj6CgDjg3f4oC378LUkU4hjg+sQy142YbPc8pGgu2J3s/UQfkt2qPvuP+ESibc7Fo9rop4PJccfZ4YDk2ASfF1dX9Uo0UXuOOwOncq+KVSRZIAIsAdo44AJ/a1cDtAA+AAP6DXPXo4AH4Ff7cftmo855zjHGMcYxxjHGMcYxxjHGM8eRrC5j71Qju/NU7NftP396F4wP9S3Plx3Ky0DakEH9wf+9ZyDRB8c5pW8L17Ha66KM0Thjoo6khlb4OwwI/fxonmmvUKMsr93FBgb+P5BFfiuCP61lz6a4KJdcqhJo+PHjwObH9/HnPJmHjetIhbbEa7STv486GyRr7lfOvgEjzQNsfCybF2P8ASRd0RVla5v8AAF8nnJ2G68fmiL5o/Zrgc82PPPnNBPX33auOyFmIKsohc15CWBRgHIKfUUJ2BsSD4IIUto8ofWZQqSPYBVR7bglWU0SQKYr3EAWHHPBADUTM6UXuPGjA130w55B+iO3uu7F3/X6yuXomt1znb8tvJBKavM4hMCzqnYsjN3xvJoMZCe7uKgxnTFtELzWcrzysxkdFdr7ezxds3f2kgE93yZvCk2SLzYhTpmoqJGC5HbZJUkn4jtPaDVD41fyr7y6/8F3T1ylXox229yW5lIraxB2kaGpAqBQ7nQZtRySuwCpt+0DYbm8v4EdO2Nfamaaf3/1O6diMXzFAqr2oxAKn+VnauLYDkg5rT1/uRT37Q7VigEbHgd0hLH4gHhbIWrJNWQDlqPPXg/b75/3zTmOMY4xjjGOMY4xjjGOMY4xjjGaqdXY2Wrlsl2pGf77aYK3gDvlZ1buX4BVh8ggft881P6uUpPMewMbF91hvr5BlseK8g/vlv6QFaNDZ8UCLJ/BsGro3+/ivxkS2msBrkmQoTVY4ZNQTRzQ2vzMfb3NIojeOWIAnt7HRW3o7YAE6k3tll99pteSFIm7Y5EkSf3UPPuBUZJIiDa9rqCWHdbADLjHGtIsMySM6EuhV4jG4sdpLKyMaF93dVHxYzW71HxuFy0brejtOoO1jakWUsG2oYCVD2ka+hWJ7wDsa0Ne9Wmg9pmeTYF0AG1XcMe4lbCupA7T4Vi3cbVgKAk9VJEkpQgB/mIlC0K+XkHm+QxAWiVK+M19TH9N0LidtO9Y7XBjiYVqcJO+0kgNZlC+NMoVCNDwG03NfS7OuZuTtzralU7YdYNVqCWZp3A4pgsaeLIDc5NpFOAflDG1+R3yHjwQAI1LV4NtV+RVZZh+FlVsWYpokjSGOtK4SFO2NQsLKNuxMkjh5EBZiF8fQije/WP8ABiJCrzIiIojJYIvApfBdrdj8gOTQ57VANZrL1exVOxiSS/HdweSP9INVQJFC+bJPOb0c9C5r7HGMcYxxjHGMcYxxjHGMcYxxjIx6y6Lu5SWXIYeSI2ZVHv07GhHK6qEEkTtpVYqB3KzIO4bEgBK8qfX/AE/J1Lum1nT3WUK8MtiN6FBlI5V6/cDgG8mum9TTWAjnVigJ7XT+ZQTfaR9gG6I5ongnNbercJ1VjUdLXSuWeMBtS0o3njIH8WmWOSLyBsD3mYADwPOtQ9a9LdXhVwem7bA/6tce8pFkmjVdtH7f8ng5cNPquixDrtwj5AlZR2n+/N0SQCAAP2+s1F66kyyPMIei+tshLo6goYpHckjWgFR9Ejetodgg9u/HNS9V9L9WmdlTpfWZTdERaSWTQNUHKqR+4P8AyMsuv1PUVQ53NFV4JLyvdD/2igOPBFkEC+TmvkXQP4m+tczBQ9PPw49UqLE7KeoevbP+zfT9SuQhFmWzkY8NFYVPqkC05b0sgBRI5H7U5hdM/hL6s6lKP0/Qd2BSSRP1ZxpwKp8FrETN28tadzsG+N/eTN6m6FrR98/VInPaB7WlGZZCwZuPL9tihyFUEA8cE3Jfh19HeoPSvpf/AI1z1LP9YZJInyBxFUVMDhk9uMyYzCoYoJZ4BMoeS3PBC0zACOGNQzSesf4f+jJvSHTXi3d2Pd3tgq0v6eIQaWqFUD2NOPtVyhPyeWSmdhfatt3an9Q9aj6vsq2vA0GtF3dnuyNJPMSTUkzliO4L8QqmgLst9bF82BlfxxjHGMcYxxjHGMcYxxjHGMcYxxjGv/w8f/HGM40P5/1P/nnFf1/3P/5xjQ/p8b8kf5E8UP8A+8+P+/7+cZzznGOMY4xjjGRF6or6lCbpuToHC0M7SSbIjqWnN1RP0nlPaMVZsTJiMoI7lJGS2k4yC3cZdMlRxFV9iWRplwtuTejaFtPXg2UuT9RHLK0L12j2jFIAyj5d3f3I1igKPOW30xpej96LqkfqjrPV+ibKpqN0fa6f02PquoXEzneTqOlcOxIGgCLqHX3NUJKXeYyKFTOr0vv9d5gWMj1v0hluj7278EtKx1ZRz2MexBkpa5ahWrxJOtaxHH+cp3pPbjsVGgeKKFZzDHxpbG5Mh/V6X6Rl71P+ckoLK9fGqYhgO5XIAZCDXPHPqzo/pnpOyq+m/VI9Sa8nsSI56XtdPljim1Y5j75lPsiaKR/Yn1o+54J1kjaR/a73/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAMBAQEBAQAAAAAAAAAAAAUGBwQDAQII/8QANhAAAQMDAgMFBgQHAQAAAAAAAQACAwQFERIhBjFBE1FhcYEHFCIyocFSkdHhIyUmQlNikrH/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQQFAwIG/8QAIREAAgICAwADAQEAAAAAAAAAAAECEQMSBCExEyIyQfD/2gAMAwEAAhEDEQA/AP6pREQBERAERfHODfmIHmUB9Rcr7lQsmbC+sp2yuOGsMrdRPgMrqUXZNNBERSQEREAREQBERAEREARFWOLLlUUpdFBqB0agG8z4qG6VkpW6Ou9cQw22URCJ80hOCGnke7vJULLWOnkFRUSaXSconHLseQ5KvUNZHEySV7S6Tm57jqJ369VI0EAaTUnJc7fB6rgpuXhYeNQ9JFsdOJW1HYgS8hlnxeiPvV21hlOyKKOM4xKNTn+eDt6L2p7gwjLMCRm+D0ULda1zhJra+GUnmzpjkUk1Xoim34Tlz4wFvihdLSH49tWv4dXUDZd9Dep6lrHGBjQRksJIOFQIbhcayimpauCmmeCCyQgs3G4JA5Fe0dVe8MfTGh1A4e2TXv4ZBwFzjlltd9HWWGOtV2ajFUxSEAPAcf7TsV7KiWSuravR75TCMh5b2bHavI+R+yu1KHCEBxJx37lWYT2RUnBwdM9URF7PAREQBERAFG8QwRzWmoc+MPMbC9pPMY32UkvOojE1PJEeT2lp9RhQ+0SjP4WUc7MTsje3/cfdTVJSUj48MJAA5ByqVOx7I5IJAQ9uWEHoRspeyyPMTS/Z+MO81Q+ZqVUXfjuPp011JEx+qN0jSOrcKuXikp6rDZqmfLdtsbr04iqpY3PDZHDwzhUC53CZ0hzK4A+Ko5eY9nDUtY8FLZM0CmmhpadsYDhGNsuIH1UjR19DGzJEe/4n6s+gWO112zSiLtS5wPPK6uFp5aisZre4gLquTNuklR4+BU22brYJmVUrRCwMiB5NGnKs4AAwNgq5whAWU+sjorGtTDevZn5a26CIi6nIIiIAiIgCIiAze8sMN8rmjb+KXY89/uve3SHVgj8ivTiyHRxA+T/JE13nzH2XNQOw9ZeZVkNDF3AguLXsEjslwx0AWc3iWEOI1u88K/8AFzSwyP2A3O6zC41UFXrdBMyTc5AcM+Koyjc2y5G9CM7enMoBEj8dOWVfuBiwzs7GBoPeTqKzqBrXTgHnn8lqXs8hAmYcdV2S7VHOX5Zt9gaW0Q1czhSS5bYMUjfFdS2o+IyJehEReiAiIgCIiAIiICpcaxYqaWXHNjmZ9Qfuq/Sv0yYyrbxnHqoYH/hkx+Y/ZUaYPY/tYfnb0PUdyzuUqnZe47uNED7TH/09c3A4Ipn4IO/JYM6eBzLQIGtbMZY9Ra0A4xvnA+/Jbvx1m48LXA0zHSSPp3hrBuSccsd6w5rJJZbVEIMSRvb2hEOkgAdTjfqqmN+n0XDpceX+/hM0vxVWBzytZ4CGl8Y6rKKKBsFSX/M9x3JK1zgBmqRjj9VKf2VGTk/LNrt4xRxZ56croX4gbphjb3NAX7W0vDGYREUkBERAEREAREQEXxNHrs8x/CQ76rPJpWRvDZHtaXHABOMrTrnH21vqGAZJYcD0WV19LFJUsme0GSPIaT0VDmrxlzif1Mh7hQ1DKmeamqmtZISdDm5AO36fVUy+xVREomlbjkHN7v1WhVZHZnuVJv7NYeNwT1WXt2aFdFNjnayV2qRr3N3OBjC1n2YOdUmBxHzuy3yzssejss3vjy2QYcVt/sspwyuo4RuGAZ9BlWYaucUjzl6xs2dERbRihERAEREAREQBERACsyu8XZ1Eo05w4/8Aq01VPiKxVMkz56INla7cxk4IPgqvLxynD6ljjTUZdmf1TxpOdQ9FW7i2J2cvP/JVoutPPTFzaikqYz4sKqNzlAJAjqCe5sRKxHjkn4a6lFr0jg2Fsg+Z3phaf7Jqf+YyyYGCC/byx91mVDbL5dKhrLTYa+fJx2krOzjHm44H1W6+zvhmrsVCZLpJE6skGCyLdkY7s9T4q9xME91JrorcrLHRxT7LgiItcyQiIgCIiAIiIAiIgCIiAEZ5r4GNByGjPkiID6iIgCIiALgunvmqE0cbZG5PaAyaD4YP7IiM9RdO6s+Wt9VLl9XTvgduMGQOHPoiIoQm05OlR//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAgMBAAAAAAAAAAAAAAgJBgcFCgEDBAL/xAA1EAACAgEEAQMDAgQFBAMAAAABAgMEBQAGERIHEyExCBQiI1EVMkFhFkNScYEJM2KSsdHw/8QAHQEBAAICAwEBAAAAAAAAAAAAAAUGBwgBAgQDCf/EADgRAAIBAwMDAgQEBAYCAwAAAAECAwAEEQUSIQYxQRMiBzJRYRRCcZEjUoGhFRYzYrHwJMGC0fH/2gAMAwEAAhEDEQA/AO/xpSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUr4Zsnjq8hinv1IpV+YnsRLKPYn3jLdx7An+X499dS6DuwHjBIz+3f+mM12CM3ZWPbsCe/b9698NmvYHaCeKYcBj6ciuQD8EhSSvP9wNFdG+VgfsDz3IzjuASMA9ie1GVl+ZSv6gjP6Z7179dq600pTSlNKU0pTSlNKU0pTSlNKU0pWot+eXcds26mGpYTLbmzkoTmpjFhjp0Wl4Mf8SvzP+gWUh/SrV7k4QgvGnZdQOqa7Hp8q20Vpc31y+B6duFWOLdjb60rsNmQQcIsjAckDjM3puiSX8bXEt1bWNsu7+JcM5kl253ehEinfgggs7xLkEAsQRWtf8ZeTtzyyx2alXbVEOscUFGza+5mDhuHa3+lKCvsOgPpsxBKr7DUK971Hes4NtFZQggKEndZHDA8+oACuOBkHk5G1c8TK2XT9mEZbie8l27iZIU9JSCvGwnB8k5yVHluceuabdeMgsVcSlGNrFt4bGfsIjXYnanBdkFeGWNY7DrWsfncm9SJHjki4aZe46yT6pBG9tarFGXbYbyXEsqO0Syt6abBGQiMSZX3KGUoAWG4cxxabM4nuXdwqq4tIVMcboJGjQSNuLqXdMCNcEhwxwpwft2eMph7sNmPLZDLIzSzNbuzNLG7OxjMLF1Fj0H47kKGQAl4w4Cg9tLtLy2lEjajeXwaUyia4ZSIwwCtCoChngOGYA7sM7MpICg9dTuLW6Tatha2ZjQRejCGXcPmEhJyqzKSELAKGChWAJLVk13ztjsbmZ8LkNqbiqT1qwnltWDjIKTgoziSrJNdje5X6qD9zVSWL36AmVWQRup/EzT9L1ubQ59B6jEttBHPNfPaWcGm4kQuvo3NxfRvdRqozJLaxTIhDLkurIPRZdA399pMWrQ6voZSeV4Y7RLi6mvg8bBSs0EVmy2zsTmOK4kikZdrY2srHWSeeN4ZDPR0cUdvSi1MTUxy4zJWJ2rln6lrKSqo6oAZZmKRAg8EAqDUU+JPUN7dQxafFp0hnIaG2Wxvpy6EkKDP6iYCgbmlYIvGchSKtX+QNHtbOSa+OoIYVPr3BvLSJUcKCf4LRs3JO1YwS/j3HJqRuD3XPZq1zmasNa05VZXpymWD8/ZZBHIfXVO3s4Uzqnz3I+Mt6Vqd1c2kT39vHDcEhZfw7FouRn1FVizhecMA0m09mK8jGeoaZFBcypZztLCMmMTALKcHGxioVC2OVOI94xhRnnONTtQ1NKU0pTSlNKU0pTSlR083+QcttiavhcbL9qbOLbIs6EiaynrWK8gjK8OY67xwiZIyPezGZv0yoMVrdxeWum3E1jGJLkABMru2Kfnk2fnKLzjBAzllI4r36ZDa3F9DDeSGOBjlsHaXIIxHuwdobsScfQHNRM8XeWdvyW85Vym4KFvdFzNXGsUp7SwX4o3KejWFS4te45ij69mijkhklBEcjhRxjPpbqWxZL0X+oLLqj31wJEuSYp8ZXYnpTLHI6hcYKgqxGFyFFZK6h6dvwLJrDT5Y9KjsYCksKiaBiVPqu0sBljTLk4VnDAYLKCWNbj/xll1yCQLGk1dq72oJkkYM8Kh+6ugjYpOhQAx8AnlT2BYcS02vXi3AiAV4zE0sbqxBKKGyGUKdrIRgqcZGMEeYuHRLZoPVaSRXWRY3VgCBIWUAjJBKMG+YAkEEYOKwnMeWql6LIxWMnj8fZgtzbcoDKNKlSeWWN3t2PS9MrYKVE9OeMdopI5kUGY9kFV/z7akXcV29vFtuv8NjaYL72cOJCqSsm7EYf1SrMjBwFJKkCyHoi4RrKW2juZt1qNRlS2bLRhCuxcoG27pMBNwDgoThQcnhtoUt94ywuQ2dumQYGW3M2WxGTFvLYmMzBHLYAZOOG5jjCWMyGjcFEAiBqlhG5j8mgw69Z3lxcdP6pdtoclzKZtM1GN7q2gklZWdtNa6IuIYo9zMq28/4ZWYKscq9vXrV1od3axwa5pcK6uIIxbX+nSRWtxKsYZF/xFbfdBM7hUVjNCbhyCwmjYCuRyG0N0b7sz1s5vrc8UEJntU4K742pcq3SroiYmS1QylR6jwsBYaOWtLM/wCM9J1C8ytxZ6jrczQahdTXVugfbFut45UkkUqUty0c2VdCdxRo2J4aIgYEXFfafpMay2Fpbw3DMgeQfiJYZI1ZGDXCLLbnerj2BldVUZSXmuZ8UeEchtXOXdzZDyrvjdk1SUYlMHksVtKjXFKOshrwT5Kht6nkLVeYR8GBTWlgk6iaeZOF1z090VpthdTatZ3OpfioVWxltZFtVV4Y4v4NvLL+GErQ7VVCimJk9odiBzzrvWF3qFkmlz2GnRwSs14t1HNeOwmeQ+pPHA100STBmLb2EispOyMcmtt4fcsz7pkwlGquRaCWNZJKEr3oa8LAO0U8yQCpHJBz6U/63pxzKeTzwFn7LV7mTUzp1rbxXCxSKskkErXEcEWAGWSRIxbqYgdkgEpVWUgZOKrt5p9vHp/425uHjMis0aTRiJ5ZNxAZIyxmZXA3J7dxBycDJMmMcs60q4sv6k3T8m5DHgsSgLr+LsqFVLjgOR29+eTkpflGfp9c/pz548+aoLYJOO2fPB/qD2/Tx2r7dc1xTSlNKU0pTSlNKVhW/wDa2G3VtvJ1Mri62RkgoXp8e0qcWKtxKsjwyVLKcT1pGkjjDmJ1EijpIrr+OvPdRrJBJkZZFaSMhirLIikqyupDKc8ZB7Eg8EivrCxWRcEAMQrblDKVJwQysCCMHsagLisHsfPxwJlcXhsorRIEOZx1W5NEh4KrDdeL14ip4KmNg4IB7j+YYwvrrp24Ia/gspHdGLfi4F9Uc5x66oGDAnIYHOec5yautlPrFpuFnc3tuFb5baeRUyMDIiLFWUjjaRyMDBwa3ltjx9tX7T7ai94QAHpTTN3bNdOe34R/cSPNGnUkBBOUAAULwqcLS20K6T0ra6nKqARHFfiZVBGQo9VGk7ZBUvjGB4r1XGp6ujCSZLZmPeV7JUk4PdvTIUknncI855zWp/LvgfYW8xSjz2GzNn+FPPLSbGZm1i5K7zdfuXZ6VuAymx6cZlMwYsE45+Tqn9TdMdK6iEh1G1vp1hLSRiJlGwsAJHJjaPdv7MX7g8mrZ051f1Fpfqy2F1Zw+uFSQyxlw4T/AE1CPC4ULn27So3c7TxjEr107XqQY+vd3FBVpwxw16xvVTHFDEihEUsCOqqBxw3bnt7k9uftFrFjYxR2qXmqxQxRqkUCpboEjQKAoO7GMEfmyDnIJrxzpPezyXMsGmNNLIWklYThnkYksxwnzE54wo5GB2xicHk1akryia/KWJ9T18xTrDryeR+uWjI/H3UlSePdlHHPguNd0OJmuZLzUA2Q7tJqNlZg7TgfOjAhcfUHIByB37CG5IER/wANVVDKgSyuJzlgM4AdT2JwQpPgDg43FtTympoz2hawtWvOBHLPfy9jLSSpwUMa16x+2UkSFeYeUcHoSeeF+sPxN0eCF/TubORJG9PfNfz6nNLuymxY4gISX4GQxTHAbHy+Cbp+SeZEIuWlUFhHa2SWSocltxeQl8KRn3bWHB4yQd2+J8hT3PkojXsibH0zJJ9rTpV8ZjXaND19SnCGawFcqQZ3YBgpAHuNXrovV5NdkVlga3sogWWEQRWsT4U7MW0QKlRlSC7MwIA+1QnUlgNMhbfk3M21TJLPJczj3AtmZzgEgfKgAwTnkAmTwAAAAAAAAAHAAHsAAPYAD4Gso1Q686UppSmlKaUppSmlK/LqrqysAysCrA/BVhww/p8qSNcHHnt5z2/r9v1pVWyYq3t7P5zC2UeCXFZrIVPTfkFYorUv27KD/lyVjDLGw/F42R1JVl5wJ1HamKa5jK4MUsiEMgwUDkjgjnK4IP3BxxWTbC4WQW8qkEPHGdw552gNn/5bhjuDnucZ3TsixKJuOxHK9uQzAj54HHIA9+PgAjgA9T7arWjoFuGIAGfGNpG7gbiuVxz25IHcDtUvfsDGmecnGCFPYckHGeQM/wD33rWvmXcuTw88j1rU6BeeY1mdCUVGcyAqw5EQ4Zxxz7c+/JAxf8SpLyC6DWtzdRNtLFIriePcgUsXJiYEpHtBfJ4JyQc1a+lrW1uINssMbk4ALoDzuAAGVPL7iF8eAcVVx598z7nnWWCvkZ0jVBDzFN6bF4uC7IIm5KsSv6n4GQMfng6xXcT6vr8ym/1C7aGNY4ViS5kUAwcsyrGw3hnAJfIaZTyGxmrzaaXpdgrsLePeSWZmUuCrHCqSwGD4xwVx371WxunyvvL7qdWzF1o0kIeVbU5Qq5HUhSQxVWHRiqqwDMCpIHE7bdO2E20TgzNnGXd3DdiPmbjsApI7ZyO1S9nNaqwaO1iTdkhRFGCMd8sFAzyGx2OM5AqZP0w+Tcpm4a1C9du2rDTxLEjvLLHDGvYgcyjjgglkKniQHsgPzqY0fpeGHVoZkiVLdChBByB7shQOwwScgc55IPjy67JDHGZo0jUlGB24DMxAVmwuThuAcjjBHBrsS/TDhZquDkvyxMqyVkUOw/zJmR+o/clFLN1JAJ5J5bW5nQVmIbQygELsCg+MsQQB/Q9uMZPAzWr/AFjeevcrHuyd5JH0VcgHgYzkgDnJAzk1KzWRKpVNKU0pTSlNKU0pTSlPnSlV1fUHBksBv/c+TxEK2JbSYHM/aPF64lrtSgp3wiKySGQ/ZzSq0bKQV44Y+2sOfEJprOW6uYYvWKxwzGIxmUvDhVn2IpDbgquy4PcE84xV/wClVt7o2tvcuIkYzwiQP6e2X3PESzApgsyoQwPB8ckcntnJWoEr2KuMe48kaS+jHaSCQxSqjEKthOndQ5PV5EJIZC3sDrH9jI0NxmO3aUN7lCy+m2xwCuFkQpuIJJy4Jztwe5s8saSoFluVhCkqWaIyLvBKncYm37cjuqkdiB9Y9fUt5L2ngazfxtMtSsOyQrVSjWt2Vk9OSUmSGCcyEBQQZEX0+OAeQvtjr4h3dgZP/IFzbudq7HgidsHcRuw+D7WwSMDH83GLv0Zo+o3JzaPZzIMtvFw8S7SQOC8fBzyFI/aqqvK+Z2vcxS5pJ8qK9uD1YIpcUy3PSX1D+UfqDorOxKKW/lYDsRxxjyygtmIEd02CFwpgKuEUdy28KFJYkdjggOxGKs9yl9HcSWzR2+5GKs34kGIFwM4O05IAAOeRjwQRVftndu18nkrcL4LcUkVSWRXNmKtjI7Z7h/S9aaSWRlVeR6gj7lfZQT1JnrW3JKlfVj2sMkhMsNxOCdxPAyAcchh2r3DT721iEjXlkWm27UjZ5miDjaGCKqLkkDcM+05P82LEvo5SjYysTYvbVGkyMhWa5as5O8icdlZWmjr04+V/FQteRg3AXgc6uGnOIZ7cgGVwwwJTuxjAwF4TcOy71bnx4qv63HI1s3rXcsgwQRCiQRfflWeQ+7OcsAQD3B57OnhqrLX2ZTeZCkkwiZlIAKgQRkLwAAOA/uoAAJ9gNbedMLjSoGwVLqrYPj2LxgYAIOcgDgnmtZtdYG/kUHOzKnyM7jyDk8EYNbY1YahqaUppSmlKaUppSmlKaUqGv1F4zjeG3MiveMy4boHR2UtLj78xVGAIDqYrnBVgwIb3Hwwx31tEBJbTcjMRG4HyjnhgMblIflTx5xnGLR0/JhJkO0qXGQQCQGUHI4JB3ICGGCMYB55wvbtgRziRzwqoZGP5c/h7kfv8L2IH7cA/01iWIhLojOOdx7dskngEZH5gcclexFXZstbjYOSVAHfngccYA92MccHJ7VG76gdr083TtWJsZjrkVlLNqo92GB2jMUcEVMTTNCbh+4rQkdPVAjuShpuoHvR+vBa3RjMqRzRlEkHqq/HtZg2SpMbbtgUHGCNnG/m1dL3F5YyN6E0kD7nVhGygtyFIwfawI5J5yPdziqjPOlHL1o7TmGwleqkjwpIerxwwVugWUmL02njRpFjcSCFiIAFPLvqk6cls5J3KZJCyvkANJtAAJwcIjIFwikKQCTzxVo/EMSAzq3uDKRIm5S7d9ucs2cknx2U1AtoGtTVBbJa3NKJpV/LrCtg8LG4jUR8RK0SK5PDEMTy3HaahFs0kirJgAhFVVPBAwzZB5ycnJ8dgSc1KiWZNhRFKgAkswJcg7iAMg5xn2kZHcA+LcfoewSxX6yyoElaWFXA9z7soPYM3CJ0CmPgljyQxA+ZrSYt9/aKTwJlU8g/MwIJzjwSRyc/3MB1DOVs3YEYKblJ5yf1885DZ4B7DmuyrsOD0NsY5OOOVdv8AgHoOfnk8IOSNbhaImzTbYYA9vYcduMn78f8Ae9a0am4e9nb/AHYP645/5rMNS1eCmlKaUppSmlKaUppSmlKjX9RlH1aG18io9616/Udv7WYIJ0BPxwGqNxyD7k8D+uqd1nB6lhFLjJiZwTxnDhTx9xt4qc0J9s8i4zlVYfbDYJ+v5u45H71HjFzmKdfy4Pw4LAgKwZQCvPJUgew/lI/Y6wTOTDdK4yMuFOeQcrgcfVufoowTxkVkm32yRGM8gKGA5BO05ByOAQAuPPHPBqNv1oZi9jPBfmPL4u7LjMjhvEHlDK4y9TmkhuUb+M2HnrtG5Tkj7PDbqW4obVWY8COeBXDB1Gqn1I6XWoWiMsbhri3yjbsOjTxqybQWyCrkAMQhCkbg2RWSfhjY29x1h0na3MST2951T05bXEMqI8M8FzrVjDPFKGG14po3aKVSMMkhByDz0kth70xE1/6ULG3Mkqb1z2/No1N4Waq5aLL26s0GSXcdbcl21ufJzXIMrJWr16RvYurHncfYzF5HudTNDLXkKrZaiXgh2LaytGAiKEO3MZi2hSoQ9mViUwOcDNfox8SdFuVsvirFqFqr6RZaBq0ulxSi1a0hmiMD6fLp8MdhAkclqXkaQQXMrWU0drGwiztezVvuLOeVO0wAkCIoBIAVgF5IKdjyit1YleeGAL8HVGhdYlZu7FsZABJ5wOQBzjByfoMZOK0DjjXbuIBCj8zBSOORjnGNx8A44yQeLpfolxbxz4x5By6zQgH27xonXr2A7fJ5PVuTyQW7cg6tXTmZNUthtBAkXnBOCCMHHP5snB+vFUnqqQC3l28gr4zgnBJH2BHGVOPoM8nsR7YT09v4kfvShc/vzIDJyePbk9hz/fnW4GnrtsrYc/6KHn6sNx48d/0/vWud2265nP1kb+xx9vp/TtXO69leemlKaUppSmlKaUppSmlK0z51p/c7HaYLyaOVx1gkDkhJWmqP/sCZ05P9B7/21X+povU0mf8A2FXP7Ec458ipLSW23iDONykD9eCOfHY4+/FV35LCZ1PIWE3Li8hYhpx4xsVlKRZmqWqyySTxM0RJQWI5WBSUIWCgj4PA1s1GykXV4r2Ocooha3uYXJMToHLxMFOR6is2VYANtyOxrMem3tsNHuLCaFTMZ0ntpgBvR9qo4DgE7Cq+5SwBJ48Vqr6xXtZn6f8AzRh6lOW9ls14j8m4PD1I2XtczGX2RnMTi6kIYxp6lm3cqVk9R1RS6SMyoGZK5rLwx3Fvd3Eojhtrm3mkZ8sqrFKnqOEQb2CIAWLAgKu89iavvwxnjs+tekLy5dYbSx6q6dvryUg7YrS11iyurmRtpb2RwwzSEIpZs7V8CunR4i8ceRMluP6Xce/ircuOm2VvLE3t/wCZt+I7+1osbjtrbblTHSXd7WMHjxnBAbVmnk47V4zfxWCoKwycUte2PbqGqafJp2pyQX9rOJ4WigEd3HMzM7L7VjRyw7DO1e2WJXBx+gPxU6k6bTRvindw9UadcprOj3ltoNlH1VDqctzcalqCNOsWipeTvY7xFHJbmGAKbaSczfhmEkVWa1aCx54ys6n1LS8Rr7qgLiQFunUdAw4HDn9RQQpUHmjxMfcWOSScFeBwcgkA8+MYOM4yCMk6HQs0iqEU+1eWc5J7jjuM7TydvyMeQcVdl9H9CRDjp4F7s8cTIsnA9Xp1RnhDBeEZ27rEQSvVgH6jV56McHVrfYFZh7gGOFYKQDtyBhct7Vx3BAO2qR1QuLeQSNtAY5wM7cqSFbnlgPP3yRnmr78dEIMfQgHsIadWLj4/7cCJ8e37ftrcOBdsMSj8saD9lFa8Stulkb+aR2/dif8A3X2a+tfOmlKaUppSmlKaUppSmlKwLyfUN3Ye5IlXsyURZUf+VSxDZ5/4WJj/ALjUdqsXq6fdrgk+iTjGfkIbt9cZ8/fxXqsX2XcDZxh8H+oIx/XNQJcqkvwOeDx2DcEA/wBSOf29vf59/ga1i15zDLINwBUtk5I4ycccf98ZJrLmnIGiRuc5yOBnyP17HBHbB/rUavNfiqzvI5TIY/emYwL5KrBWmhrUMbfSKGtjJ8d0qz24WnqUWecZWzTrtHFdyqCS7JapzS1Fp19f281sbe5tYbiJgwk3u6bl3Llz6IVWwB6YaRm2I3sAf3GzaeJ7WdZoJmiYbSCAvBCkKql92CThvaBuYYcsmFFa3kLxRufb23Mxte/5Bv5DETBUptVrmpkoo/tZIrr3CHjrtde1IL9afHsgb0kjuCT7eJkrcc2nWz27WWmW8X4fcXQn2K4lRgyKVDuWQ4bcCqgtsK+8VKyteXlxLJcXLO8qqofaN5QxsoQsOQu/knuxwG3Eg1GPBYlsfkWrXc1dzsr5KxZfIZCOrBMDOlaNIkFQKrxK0T2GjPYGxNYYAIV6/SWRZirxwRW4CAGOEsVbDFt5Z8nO1grflARfbwSbBpkbIhLyPKT7gXABAAwE2AbQoPIIwwLkZxtAut+i14rtulFWPZUs0q5b3JkkmkjAA5ZmPJ455Y/l2IHA1d+goGk1+0RtpLumQMZX+IoB3Zz558AdxVM61DQ2Ujvgbo5HAGMLsXGPHAAx5zg8Z5F74AAAHwAAP9h7a3HHYAdhx+3H2rXHvXnXNKaUppSmlKaUppSmlKaUrjcxU/iGIylHr2NzH3aoX92nrSRKP/Zhx/f3185l3xSJ/OjLz/uUgfryRxXeM7XRj2V1P7MDVb2VgkgsNHIvR07RuvBDB1PDqeP6hlIHHHJB9uT76sdXRFbqdOQRI4IPBBzgKTgHGO2Mk5wDxzmPRJN8MeOfapz4O4fXz9ceDg58Vge4JYZK0kTOC/HPUsQSeCDwo914+WZfgDnqePfGV6uRuck8kcnbw2MMoGSv3K+OccYq5QnKrtGOBnA85wMkgbsg4APdsjIBU1XJ9RMslHG5azD1WwIWNWXsQ0bBXYen+RjDEqoZZVY8MOihuO0JaFZbkk44dSpwQVA7gAMy9uCGyQBkA96lIIt88aEMcn3AYIYZXgjaCMDONpGe5JBNVjbRg3xnchJcyXFP1JiYvQWZUKK7yfos4QfqEs3qFQ0bN7twxGp9/TGFDqr45IyNoPnGOSc558cHPBq8KmnWu1YlLhSMlipJ4Xg4+gHYHYSOBxmr8v8Ap5bZvVbuFgtETS2cxBkREkjOa9OuqSIsrkASdI4HmZ+oUsxRRyCNXj4UW7v1PEnqGcLMXJ/kRSJCuQSOFBOeAeQCRlaxb8Ur2KazmeNRGiW/oZIA9WQnazBR2DMwVR3AAJPer0dbef2rW2mlKaUppSmlKaUppSmlKaUprg/+x/yKVAPyXjZ6GbyyrHGXW9a/TkJAHMrsrLLH7jlCpHZZFUN7qDzrWn4ho0WpXY9MErIvcEYGQQ+9cjtjllbGcAcVlnpfElrCQzKCgOVwfqCCHGcA7h3HPfxUYb81pZcjPl8VPSjgm61pa9qC99zEBz6irFJDLD2J6+nJEr8gMeSBrC2pXCqshZJEEZxuVhKXTIJI9NkZDklcBBknd2GaydbwDbCsNwkm9CWR0aL03IAwd6Mh8kMHx9AAeIqeTKm38wki34rswU+0b4/uGfuxUSD1kPTqV/FXLGRQwYeyisCVoyWilZWIxzGRznIwBtKjbgEKzMH927BwJVYXBXCpkEnKzAcYAODgkndkcqOOMZGajWau1qN+MLj79oIymGKU1KUPt7dmCNamCggAoBEQFBIBbtrskszPlppD2JAUISTkZySxwRyw298kjzXuUSKoJeJRkhtoeQjnJ8IpHkE5A+44q4X6EFF7Nm3HHEkMFG3IkdeLrCgSuIgS7dpZG72QoZ29uvMUaKTzsP8ABGEtqM8wA2pDKWZcYLYA5YgMSWY9yRgYAGM1h74lP6dosTMdzSxgZPJG4sSFBwqkLxgeec8AWqa2erC1NKU0pTSlNKU0pTSlNKU0pTSlaC8oeLMvuCxYzO2LFVrlhAbeLvHpDPKiLGJa8x4RJHVR2SR4R2BYTAEprGvWXRE2tvJeWEsf4iRAs1tcYWKVgMLJFIPklwAMMQvY7vAuHT3UUGnottexyemrEx3EH+oisclHQ53oPHDYyfaeKgn5C2j5GwqyrkvHm4pIwrg2MZBNcgZQCGKPHBNAQeOQv3TEA8gL86wDrXw/6htxIsmlX+M4LwqLmPvnhkyCBj2gOce3gcYytpvUmjT7fS1O1BCn2TsIWP2OSCOwGfTG44yeeYHeQF3Q8k8NTxp5MysxLcQY7b0jSMf9KiOtLwfb/QxPPPUke9MHQetSTkJZaizMRwNPkyOx5AGM8foM4A71Zl6g0sJuN7pyAL8zXORyDkgcHtyOR+o4rR2J8GfWd5KzcGN8bfSxuvGQ2ZTzurynZO0dt0a349bUk+YiwLXBEpaXpj4cpNMoKRwzuVje3aT8I+or1lDWV3CrYzJdhLNAp8lpcynk5wis3PbOBUdedc9N2SkyanFOw7w2MZlkJHjILqAwJ+cqPr247B30ifThn/Aey5I997po7v8AIGbWGTMWsNS/h+2sJCqRscJtuBooLE1JZ19aa/bgry2pFjCVK0aFZNkOheiIuj7SZXnW5vboqZWjT07e3RRxDbqQHYE4aWV8NIwUhUAIOEerOp/8xXSGC2NrZ25b0VdzJcTEnAmuHJK7wvtVU4UE5LE5EvdX2qlTSlNKU0pTSlNKU0pTSlNKU0pTSlOP/wAPb/41xgfp+nH/ABSvz1H7t/7N/wDeuaV54HsePcfBPuRz88E+41xgft/3/wDfrSvOuaU0pTSlNKVqLyivkoTbbk2DhaGdpJNkRuWnNuifaeU9IxVmxMmIygjuUkZLaTjILdxl0yVHEVX0JZGmXxXcl9G0LWdvBcpmT8RHLK0L42j0jFIAyj3bt+5GyMAYPNW3piy6PvotUj6o1nV9EuVS0bR7rT9Nj1W0LiZzfJqNlmG4kDQBFtDb3lqElLvMZFCpXq8X3995gWMjvfaGW2fe5vwS0rG7KOexj2IMlLXLUK1eJJ1rWI4/vKd6T047FRoHiihWcwx8WVxeTIfxdl+EZd6n+MkoLK+PbjDEMBuVyAGQg45456s0fpnSblV6b6pHUlvJ6EiOdLutPljimtY5j65lPoiaKR/Qnto9zwTrJG0j+lvf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHQABAAICAwEBAAAAAAAAAAAAAAYHBAUCAwgBCf/EADQQAAEDAwMCBQIEBQUAAAAAAAEAAgMEBREGEiExQQcTIlFhFHEVI4GRMjNSgqEIQrHB4f/EABoBAQADAQEBAAAAAAAAAAAAAAADBAUBAgb/xAAmEQACAgMAAQMDBQAAAAAAAAAAAQIDBBEhMRIjUQUToTJhcbHw/9oADAMBAAIRAxEAPwD1SiIgCIiAIiIAiJkZx3QBERAEREAREQBERAEREAQkAEk4ARVj48XWel0iYKRwDpKmNkkbnlgmaQSWZHvwfnGEYXTA8S/GSk01UNp7J+HXBzYTNLM+p/LHX0gtzl3p6fYfakNR+LWqr7S1lJDcqoeR65NrBTDyjgOZJsAd1OOo4PVV26V0jInPmNS2IgMpqeMsBBdktL+5AJ9XPb2Wyr3l12ZFS0r5q2riiMdNRDe1wJP5cg/3EtIOR0K8N82yRLukWBpzxau9Ne7DLRPbBYomNpZY5qtz4w1x5cXv6EO3YyBwBknqrZ8TPEm4actNNUWGx1N13gvlqGB5iYAODuaDnP7KndOeGuprjfIqe7ad+isEsjXzRPlZ6WtOW454d2yBnBPuvTVJDFSU8cMFPHHDGwMZFEcNaAMAAeyxc7Kg5KMXv5+PwXaq9LbRUNt/1B3INb52kp6mnDm7qlk5jG1wHRr29cnHJx8q6tM6soL610bSKWvjYHy0kk0b3xtJIaSWOc052nofvhVT422i3zaJudZHYamqucTQ+E0zXcHOMu29hnPOei8nQsutbQzyQ10RgqJWumpIqgMeXN/hJYcZxnqM4WlhZEL6lKC1/v36U7q3CWmfpQCCMg5Hwi8aeANs1lYtTMuVJQXSe3BjopYny4gaXtw17hu5DTgkAE4yV7BtTqx1tpXXNkLK4xNM7YHExh+PUGk8kZ6ZVrZHoykRF04EREAREQBRXX2n6W8WqQ1EUUu0tLo5mb2PwcDI7EZ4I5UqWNcovOt9RHjJdG4AfOEYPPMGhNOaqmZ5Mb6SKnl2ubSvAEb2ceWe7cHt9la2ltGWOyF1TQUNKyseMOqGxgOI9hgcKD3mnqa+mqTBG2B7ZmVMb2ny97sY5I6n7qydNGf8Ig+qIM+weZj3xys66e+SLMI6W0dlSI2OOTn+5a2auEedgYPYl3KXmQtcSMfsobc7i+Ik5b+y+Qycv3XCEWv40a9NKcdslhu87/Q58LmHhzX8hyq/WvhXpu43t12gn/DnVB3SxQsMge/uWjgBa3UHiCyzSMjH5k7xlrGAfuT2Cx7LerhqK5RzVbztxhsbT6Wj7Ld+k13L3Zb0/llPMcP0r8F0eFGnqXT9mNJb/PNOH+YXVDw5xcfYDho+MlT5aTSEHk2hgIx2W7X0S8GWwiIugIiIAiIgCIiAhN8tNPcIqmjlaRGXnlvBByuNOystvkRUv5lOxgYdwySR7lbauYWXKf2OHf4XbTngqpOK9RPF8Ire7pbn1ZpJauCOp6FjngHPsoBqJsJqHxMqoTIOrfNbkfplTfUlloX15rZaWIztO4SOHQjoSqruWkqSC8SV8cr3tLi8MOMZPz37rLnh0/cc/BdrtsUdIgd7tsNyusk9JUskkj2tMYOcj3BHVXN4U6aZBHHLV9RghoHKilvoKeCUmnhjiLjl21uMq2tFRbYmq/VPxFeCCyHmUvJYlHG2OmY1jdrcdF3LjGMRtHsAuS0CkEREAREQBERAEREBpbwzbWB39TB/yumA4KzL23+S77haovMLt/JZ3Ht8qtbxk0OoiHixdJbRpeqq4GxmQPjjHmN3AbnAE478Kq6W9Vkl4/DqmSCSH6Z0o8uLyywhwGPt1VheOoDtBVR/ia6aHp3G8KpNP08Z1ROymLyRQuy57g7q8e3t0VOa8n0WJTB4Tm13v9IlNvfvqAB7q3dHMxDGAOuFVNgt7aaYNMj5HE5JcVcmko8CL9F6o7Lhk5HETFERaZmhERAEREAREQBERAYN4bmmB/pcFp8g8Ejnst9cG7qOQewyo26nYajziPWBtB+FXuJqjRXOlrXwVFPNT0lXSPccRy8gNycDGOeMde6gNbQijBko7ZRUJcfW1jAzI54yP0Ktet/llV/qemdURSRtOCVRsZcrlLWt8I9RVscJa9xaXjg7TxlXJo3c9sTnDB25P3wqNsFgqmVjBM8FgkDjz8q+9Ht/LeewCkx0vXw5laUSSIiLSM4IiIAiIgCIiAIiID48ZY4e4Uce3Cki1dXQyZLogHtPOO4UVsW1wkraT6aOqIMZzkfootc4oy4ku/wpbVskYCHwyD+1Ri5hxJDaepefZseVnWRfwXK5I1dJHGJfSCT88KydHweRbse3H/agVqtN5rKpogtckEWeZqk7AB8DqVaFrpPoqRkRdveOXOxjJU+JXJPbRHkzTWkzLREV8phERAEREAREQBERAEREAREQBERAEREAWBdPrN0Jo42yNyfMBk2H4wf/ABERnqL0962fLW+qly+rp3wO5GDIHDr2REXEJtOT0tH/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAgMBAAAAAAAAAAAAAAgJBwoFBgIDBAH/xAAzEAACAgEEAQMDAgUCBwAAAAABAgMEBQAGERIHEyExCBQiQVEJFSMyoSQ0QlJxgoORkv/EAB0BAQADAQADAQEAAAAAAAAAAAAEBQYDAQIHCAn/xAA3EQACAQMDAwIEBAUDBQEAAAABAhEAAyEEEjEFQVETIgYyYXEHFIGRFSMzobFCUvBygpLB8eH/2gAMAwEAAhEDEQA/AN/jSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKV6ZrFeuA1ieGBTzwZpUiB4+eC7KDxyOePjSldLu+T/HGOy1LA3t97Qq5vI2VqUcRNuHFJkrdlu3WGCl90bEkh6twoj9+rfsdSF0updGupp7zW0BZ7gtuUUCJLNEAZHJroLV1lLrbdlAksEYqAIBJIEQJE5rvIIYAj3BHIIIIIPwQQSCCPcEHUeudfulKaUppSmlKaUppSmlKaUppSmlKaUrAHk7z3iPH2Qhw9TD2txZJ5Uhnjp2oUFeVwrCGGtEtnIZCyisrSRV60deHsFsXYW7BJtjRm7ba69wW1AJUbGdrkcRBCqCcbifJCsBUi1py6lmbYIJAIMsIMEdoJBE54wKwvb3dPkrabiz2TNO5lZWWvt2y65DNCkjsnX+X4/7iLF1asrJG0cJmAeR/XyElhyzdFsBgEVDCwC8gJuMZ3NtBJEkdwBhQua9vTwV2SF5aSFBiQSTGSJwT24A4+6ODbYuVNz/yJocwelWAT4pUvtNKvMterOFmlmlsdX9EJJG5CtLIqqJOPb+fDWRdPpyWYC4doAj3MAQPbgEQRIgGSteAbn9MudnuaQ0iBkFhghQSN2D9O1cXe8pebpLYx+AixG18bhLCwV13FTgy+RzillkRMtJDZMGPrSxskUNXHyreVXR2utMDXjlJY6Yq7r3qahrok+gxtpYyQShK+9gRJLDYeAkZPcW9IqzdLOWBJFpgBb4+XjcwMggyo+oyeV8kfVzN4zw+CyOb2THJHkxHRs5SDMWnxiZ5YnknxtWvFipbrNMkbz49bT13tRxzxITLVn116Z0H+K3L1vT6kh7Z3i29tQxsEgC4zG4qgAkB9oYJIY4YV10fTRrGdUvbWXOwqu7ZPzEl1UeGz7TE4IrJWy/Me4910qF+XA0sc9mCK5LirZt1rYpyAsGWwZbMdawwZDHFbiKuVZXEIPda7WaFdLeuW1vLeS22z1LcFS05iYDAQZKkg4g1H1OlTT3GUXRcRTt3Jn3DBiQAygzJH7zWc6W4cVdEKi1HBYnQMtawyxS9ieDGjdjDM6n2b0JZRzx8cjVeQQSCCIMcY/5/eoVc3rxSmlKaUppSmlKaUppSotfUBv3c23IruPwcdpp1xUdypVqHpYurKZY5rFfn3tvTlTh68XqOAEAiLTKwkaVLdy+iXXW2jGC7/KPE9hJxLHaJk12sKj3VW46ovdmEr9AewniWwO9Qk2lvXEYurksnbqTWMoBPbvZS9M2QyVmd7Jlf78XGiyMEsticR/aiIV4UVY4gkaLxf39JddlRSAhhVCgLbgLtAV03IygD5t24zkScWV3TuzAKQFJG0r8gGPlZSQQAARwZ4mSay3s3B1oGm3XMpknyIW2EmYyicyqvfl2J7KxVSkS8QwJ0WNAR2MLUXWaLIJC25SVEExI+WQAACVPc5J8CLdZv6cmE9siQcGex4jznknJrMWK8hUJ45FqosGTx3Sf7aQK0kJDlYpmX4MLkPGOwAmBaLkM+o/5VwFLfI+ARwTjEgjOQYMVyFhhlsgyNxOCDB7SceD44wDWD/Iu+ZrUGQW/Wv4LKWZh/VxNiKJoVpiaetkqsrSxIYWiVWgRH7KoYDgq/WXpNIbb4Zb6RPuQgMXIBRhkjJIPaYyRFdrWnYMQNrqAJBUwZIBXvBGD9xH1GC8Rv7yxuzae5dk7zw+yd5GSSn/KdwZTFXsNJI1SWO/jL2XpYewKFfM1rcENvG38bJTNWyiTSmeF5TJcixo9LqrGs0dzVaQy4eyl1Lu1XDW3S2bgDtaKttuo4YMpxBiJ4sW7N1L1lntGGJthw0hgVYKWhim07WU7tw4IIrnKWb8/mCjb2/kvGcGSp2Ia+Wgz+N3ReWzCVk+5ow3qO5o6eOlIQGC/EssQAPeEu46x71vRSw233RtzIUNtSsZVthtbjk5VoP1gY5uton2hmWSRkbhiBC7J+Yz588VILxZvfyNuR4F3dtilRMObt4+TDYXIWclFJAtOKXHZZYLEfqClkWknQ1pSwH2pnSd+VEdfq9NpUtEC429VV0ZwoDHcRcQ7YG5QOCSSTBAiK4XrVgowJZbgAdXYCGEnchI/2jEx80Svep4YGOaLHRxzNIejusSSv6rwxexWBpeWMnoEtEGZnYBQhYledUJwT9z/zvVZXM6UppSmlKaUppSmlKxr5cxNHJ7B3HLbx8F6XFYu3lqjSIPWrS0EFmSWtOB6teQwQyI7xuvaMsj9kJGutkn1EAMbmCnvgkcjvmK62f6qCYDMFPce4xkdxnj/HNQfovsPO1QmaoYe/WIh7jLUkmfqWVox94ginYKwTjtLJwwBJ4Ore2mpQgWvUQyf6Tx9MoZHJ8cdjAq0Fi+h9ocSTGxoBgAA7YYTHgDExyAM47cwuyr9MQ0WkRI4+kderkJTBEqgAIkUySpGqKOFQMAFHA+OBzu279tpdTJYklkMn/uEEk8nj/M8bli9bYM6xJJJKGSSc8FQZnGPtNdE3ZgcFVtGanJl6k9ZSHs0JavBTliyzs0aI8ZIPZZAVbr7ksBqVYt3WTm0QYjfuGTn2gZn+/au1vT3WE/yyDwH3LkxwZ8c8R96ip5Q21svdyRY/N7r3Ur1fXVhVs4pp5opwiTVZ5Zo5CYOgMarF6bKkrqH/ACbm50V7WaJmu2bGlJYKf5i3IXb7gwUAbWkzJkkjHyzVjZt6vTkPbs2DgH3F4BUyGHtHuEzz9RzXYsBuDbOydu1cdXhtUcNVUQxz5CWhSVwAq8yXJ0ZWcoABLw7lAD7lRqtu2NTrNS7tcS7fY7mW0HfuSAqp2BPERMie1Rvyeo1V5ipFy6xLlUDucE8BYKw3aRBwZNd+235Q8Z46v9z3w5FwMnaxlrOW+5DuAVirU4adWdJJCPZnPLAmMghteX6frbh2Fbo2mSRaWzsIUmS7bmUkcznjvFdH6ZrH9twOuyNwKqhEDkk7mJCzMAHPgipCeINwU91360OFxseJw8U4Z46VWvi1sRIHlZHSD1bMsLsPy9W2xbseQOSNQdfpxYRnuXfVu4EsWeDODuaIMTHtAMc4qDrbCWEYtcN25AAMllUlokE/SeAIJJgRiXKqqKqIqoigBVUBVUD4AA4AA/Yao/7+T5Pc/rVRXlpSmlKaUppSmlKaUrj8tQjymLyONlAMWQo3KMoPwY7laWu4PsfYrKefbjjnXkGCCOQQf2ryDBB8EH9qqBx+PuUoMptzIJJXtV2u4i3HIpEsFqq8lSTlGB4aOWPsB8cAjn8vbW2HDG3dGYIZYIgzBg+RkwJH71qdKQ1pXBJIIZZJ4nvmYjwR+2Kyh4ot3v5fWfII0N9IHrXV5ZC1iuzQvL+JIKzpCJ1IHuZvyIZCqy9aUO7YZSRtOTCkhtue67ivjHiJlakhhIJKjIHMZXmRIImMAcCBBqPn1C7hzFCe/FTylyuz8sYkuz1xGidWNrvE6/hC3RZOfdQeSCA/XSdAWyyoXtowBHzW1aZPyQQckHHHA4MToOim36Y3qjf9VtXkmYUAg5MmOJiDBqrLf++dxWL0xmzl+KGZ1HZb0iS+pWUlnCV2VPT9Ttwy9TPGykozcrrUMLFtIt2bcgNjYCCGyAWaYbbODO04kVovVRAAq28Aj+mpkN2O4YJESP8ASR4rH+/fMNKzsuntiHO28lkK92OWe0Z5WiRQJF/NmAlYSEheyhmVT+Q5I1V6Ozds6+9q2RLSPaKLbUANMrwBKyIJAMAnJOCKq9Mt6xrNRqmC2kuWtiKsAzK/7ZUcTkgyOIBrIX0z5nK53cmP+7tXJ4oWjWNCZHjjXlmjjHrBQAqsSjBuG57L2HsY3WL023CDBmcjLQFJxM5ieAODFVHUL9x1cFmjdmfJ+YY5Bxg8fpWzB9NeDlqYlLjxkIKwJkZQOzSqoABA47cckheP1J9z7/LOp3AX2cmScHgAxnJzPGTWG6g43bBySCT3IHBgEiD2P7VKzVVVbTSlNKU0pTSlNKU0pQ/B4/bSlVc+VqDYvylvyCPhA+efIrGwDcjLVq2Q9T5DqHknlI6sAOOeefjS9OYGxbnssAjGFJETO0mIBnOc/XRdOfdYSIBUMD+jHnyCCCRBBOIxXu2XkJjYCy1+xKt2aKxxyhYdVVZVbgKocElwD29x+PvZXVBQAGO+QCJgdxByY7fXOas7wlViP1XHnlSPoY5Hk1Fb6m7eMFu0LEttHhZnaCOvWncRRIQZHjDqwIVl7sxj7cNyG/uXQdELj5doxglypOeBg9xjiJH2q06YXCjaFnjDnuSYgRAkYkYHExVSfk7L7ZRrC/f30C9lDmkxJjjRY+rSLIh4DexXohUOvqs7BdX5fUD/AEKPPvxJMkgEEwYE5kwSBBq3d7gMFQCATE4BJBJCgc9iZOA0KATUQ5M5tRspUQV8tlSrStYijavjlZFYSqs9qZpi7EOUQwxtIRH0ZOwUNy3ag752rkbSZcCQZhe5MiZxPByajNqJZkgsWkZc7RPYLgQYBjPmRmLUfo4lxsuUoNh9sUa0peNVmv3bWUvp7cd09WOtQRgv9pNWRuf7QDwNUXVvUNsi5dMbSQFVUUzOAQS8T80sOTBiartbJtkTtk5CgCSM5YkuRI4BAA/cbNHh+CeLa8bWARK4r8jgAKqwghVCqqgDtyQqgAn9+Tr5rqyDcgdge88k5n/mIrBao/zmGceeZk98n96yxqLUamlKaUppSmlKaUppSmlKrt+o7EGn5as5HsyjL7Ww1oqeCsrVJLeNcFfnlBXhZm+OCqn9Qb3pjk2ShghbjRzK7lBOYjJBwTPJ7Vd9KO5WXw5B/wDEN+//AN+2OdozGO6P0IDBeAfyPtxyB8kMSVPHuf3PHN64BtjImY5GAP8Ag7fryRe3vlU9ucnPAEAD9z/+1EP6nKNqrLlLkRgiQres93eIKqwxwR1VszPA0shmig7iMyMi2nKylPx7W3RwwysyeIgndMKSJBCxMmRBO7MRU7p+5BjBGcngg8xM7Yw05AnkA1Tn5HyMW4quRy2OnsXK8dm6J5pYpYJfXq+pFZWw01aGKScd5/yiY05GWBo+wJddPct3bXsuW2XaqsuRtAYe3IJBiTA5AgRGasDfS4sK6ttEAK4JAUCQIkEKDIbMCAPpF7CxQ28zBDK4MzTRkoAQIjOwXq4ThAE/HozOAQCSQSS3oQ6ruC9uTJ7njEiPGRI+9RRPqGQcZBz3BjMY8d89oirvvobwMUeRoExGN4njV0ZeH+VH5qW4QcFfRPuzLyWKgcnN9bf+VAOQDHcd5jH785xNRtc49IwZJkGYgE/UDBIMf/YrZP2DGE23VIAHZm+B+iJHGB8nngqffXzW/wD1W+lYLUEG68ef/Wefqc8/eu6a41xppSmlKaUppSmlKaUppSobfVJiwMjtTMFOWlx+Vxhk/wCUQWa1pV55/X7gkD9lb499WvTGhnHOVaPv7ScZmMeatulPDus5lCOTgyDgfoB9cYqKeGtrBkVCuAQfcFieOQpXkA9uCeTzz7D3UcjkahRuSMyDIgDMkggmIAETJI7iYMVpPmSJk5H1xInHb6EDPB4Bg1/ET3JktvfT95v3Pgbz4nPYHxTvjK4jJVbBS7UydfD2vtb1UlZfTuVJZUsVZZPeKSJJ0cvENdNXfvaTonVr9i41q7Z6bqntXUgNZcWX2OrEEKwztZZKtkZANfRvwm6bpOrfiF8EdL6np7eq6f1H4q6HpNbpb677Oo013WWvWsXuC1q8o9O4gMXEYo8K5rUxw3kK6t36Z7uD3tnrWY3pvLa1HcdSXem98yuUx+QxCWdy08tj85uO7jk+1syR4pls4yGa6twZitNIUgnj+W/D/V9f/Ffh0J1PWv8AmepaWzfR9brbwuWriFr6XbV/UXrLQAttkNpSwui4vuVWr9u/iH8LaBOkfirZ1fw50qzo+j9B6xqemXrXQuh9PbR6rT6gr06/o9R0/p+n1R9W2jakG3qTbtekdLcVQXttP3bLtNugxI791lHdFAdifU5QsU9MMwKqyKwkVWJZUB6sf0Qy7gTghuCSTmewIPbk4kGCc1/Ov1N110ByADEzE9yeD3kDk8+Kvc+jKP7WfGr1T1WeJFY8goFI4ZhyevLBiVc8kk8ggg6ynWANryeBIAIgkgyeIgcyMRJ71F1oGwqRyCTAxwvJiZMY/QzWxNsmJ4tr4cOCHer6zc/PMsjyDk/8R4Ye/wAn25184vGbrmZzzzMACawl4g3XI43H+2K7TrlXOmlKaUppSmlKaUppSmlKjh9S9Az7Rw94D/Y51Y2PyRHdo2UK8foDJAhJ+OVA+TxqdoG2348j9JB75B7/AF+01P6c22/E8qcGIJBBEk/47/pVdGZS5UsrlMWFa/WBLVpSFitwqR3rSNwzfmATE4Rmik4kUcAg7CwQfa8hW2+4DIOPdHBHkE8T251IDRuB4ie4YDkRIGfvPieKg9/EBtHeP0kefL2Ir2bk03h7fqxUoYzNdFxMLPHcqpUqxmxNNXNaUuixyMixiToqv2PjrKsnw/1y2AWf+FasAIGZ2Bt71KgbjlSSYE4PIGPrX4K3bFv8U/w8e9ct2bS/GPQvUe9cVLSIdamz1HuEW0BZ1WXKgkhZJitS3x8m1Mnvn6VaG3MHg4t0Vt1babdNjE5A3shAmD2zNPDNmsbFlLkFJ7EYmuT2K0aQQ/b2cfLNQjgjqH478LCzd6/8NWrVtPV/iNk3dhNxlFqxcO64qs4tkAMHu7Qq4tlgvtr98fiynVNJ8J/jBqOoa7Wt0650LqlrpKa3Tizpy+u6lbSNHeOntNd9Nosqly6XuG5bvW1v72vCzraG36WB3PayzSSW8jkbwexNNO0gIjJaJEjU+lDXiDD044e0ZkVi3buzn9Qklgq9lWATif8AST92iCTBIxAjP8wDpbdos4lmIYFicCTHy4jMxMEdgCAavl+iysLN/GTsSUCQv/VIT1VhXo7QDrGWiZyPRUK0iBXRiVDPrH9aJFp8c4IAJImT7gJyI7GDzioeuMWTM5WJHYHgmeTjgitijDQ/b4jGQfBioVEI+OCIE7f55181cyzHyx/zWBYyzHySf3Nclr1rxTSlNKU0pTSlNKU0pTSlYl830Rd8cZ48ctTNC8vtzx9vegVyP/FK4J9uASfcAjUjSmL9szEkifuDUjSttv2z5aOY5BHNVc53KUMbdijt3qdJ7k5r1Y7VmGB7U7D2hrJKwaaXgFhHGrMByTx7nW50qG4h9pYIoLkKzBBiS5XAGYyIPbyNpaErmYgSYJAEZJ7RxP0z2qJfkHbXkzHbi3LnNpZjbFjDZiSZ6uCzi2YqFV/tMYtaZqlGuq+sLVfJnJ3prLvkIb+OhrwqIp44p9s6nbsVrZZWBR3LyEKqBbAAwFfe7N7mg+3AipthGQnaRB2sANzSSAIWD2YbtxhhiOJquDynt/eqx5+SXbuwts5Cu706Oa29icXSn+3EBSS9BLHWjn9WS2I5LlNusCw+n6MYDzR15li3eXfttaWzcllt3rdm0jMpQkujogIBMBlbGAAGMiri/r+p6m0bOp1+uv2tykJqNdq9TZbas22Fm9euISpnazJuQg7DPMWsNnBWyVtMzawljI1Z5LDLiOywQV2FYH1pZllaYesliRFjZkjQpF3MgkZriy9/YxvFSxMp6YIASOIbO9STnBKkYkTVPe1SDeocM4OQOBHMwOZB4PESKvO/h+ZC1ukYO96Y9HJWvVxh4kVjReeKrWkYS8P/AKhlkl6AdV9TlOvHUZjrxFq1ck+5Y3iBkxJGJggGDjsASZmq3WXWOje48+4krgSVgkEfaIkVskIoREQfCKqj/ooAH+Br5lM5+8/fv/esRXlpSmlKaUppSmlKaUppSmlK6zvPHnKbT3HQVS8lnC5FIlA5LSitJJEoH6lpEQAfvr3tttuI3hgf7172ztdG5h1OfoQe1U0b82nhMjuDG5+9Qjny2DSyuNtSkn7UWPef00Y9O7DsrN17FSF54AA3+gu3UsvYR9tq7s9RF/1FY2gnJPBx5PAMVt9KXe36YYqrhQwxmJKmYnA7eeax5uSVWpToHYoAyhiyRhl4Y9UB6hAWCng90TjjkcJxcWVUMv8AuPAhjxEg+ScxGDjPIq1tKFK+cYg8dwRPbzjt+tfHmOq1xLkYMkMk3vFMpPeKJkckiJwkUysgjAZ5kCKwJ9RSQLZELIBgxgjBG4MDyMqQ24wFIPnGZrKz2yOCfbjkmc5BJWCZMDIyMkiqvangXcw3tkr9XLQrVvyIFj5kWWIHuzo0SqVcDvI8bD3fuVkKcqDPDj00UoPbEEzBzzOJI5zmPoZqgudOulsEATgmQSG5nt3M8yeeK2Ov4dm3Vxm5Nhbdib1IMZDioJCGVnb7RPuWaTqPbkRdmA/BSzBTxyBiviZx+VvtAlicwYyYECSAMgq3keK49XVbOg9OfcttQCIkzgkxHJnjwJmM7B4+Pb9ff/3r5rWIppSmlKaUppSmlKaUppSmlK/D7jjjkHgEcc8gng8j9uPnSlVHeV8a1HO5yH0Owr5G9GyI4jlAFiTjqXDRMCOB79OfYduDyd30klrNlpiUXkYnGDtyPIHGcVtumtNi0xOCiiSJk7R+uDj6GcHIqJ24bkCxT+o92sql1KvC5brw0Y4mr/cRD2LcEqVJJD9vgaeyre2NrHGZG2PmyGKn7CQTir23g9jgEEMuCRJ5MiB/6jjMS981cRZEhlyJVlVO4WlfHaYH8lVo6oCIoAkVyhldwUf8ehFqpPISQSYG9TAk4ILHJkiAdo55mpyueIMT5EbSZGO5PBjA5rBCVtu1r0bNJdsnuvVY6QqrIXPA/rWHT+kzqCCIWA+OWPB129x4XbHdmk8Y+X+53An/AD6N6bEAhp+UbjkZOcfTIiDEmOKuU/hv7dibfGQyqwwRx2I/vz6cjzSL/LsdLWji9RwqLDFLZj4jqxwxNK0jMsnUPrAfFdxhaVGPunZERIZt04JydpgkkwIyKyHxBuW227lmQRPAkx35wR9u0E1d18awNZCmlKaUppSmlKaUppSmlKaUppSoUecfBW68nkcjuHZ0MGcqZDvYtYN5VrZKrZdi8z0ZZGWO1BKeXWEt60bt0WKVerLoul9UtWFWzfm2FG1bgUMrKScMACwIxnvzIMg33Tup27KLavHYEI2vt3KQJjcAJBHkTPMTM1oeRts5zb8lqvndsbsw0qs4kFrCTvGv93P9TmAsD8o3pkcD3B1stL1Gw4BS7YuDB9rqDgCCQZ8xHaRxBrS6fqFltpDW2AjIcQeIIkYM4ycdz4gr5CydCvLNwuekkJPSClty5NNzzyojRp1LMOBwQ3Kkj3ZfbV5b1tnb8yRGS1234EzB8d/PYCrH8/YiCSYzhkIMkgcd8dpH2rDe2tk+dfJWehxPh/6b/Me/rs9hYVyVvblnbW2qHd+EsZXcWQWLE0a6khpJLGTpqyhhGWcgaj3+tdOsLuvazT28H2K4uux8bVyY7ALnmQBNV+q6zpbRkEFhkbrg7CAdqS0kySJBHfmtlX6FPpl8g+ENoSZjy7Z2/FvnMVjENr7Wne/htq1J3SearJl5VBy2UkaOOKxNC0tSBIykFu4JPVT5v17q1rqV8fl1cWUOHuAB7hAiQoMIuSdpyTkgYrI9U6iNe67FYKsZbBJAgQoJCrk4yTjiKn/rP1U00pTSlNKU0pTSlNKU0pTSlNKU0pXrkijlUpIiSKflZFV1/wDlwy/40pJHBivkGLxqt3WhSVx8MKlYMP8AuEXP+deZPk/ua8yfJ/c19vVfjj29vYklfb4AUngAfsBxrxXivLSlNKU0pTSlYi8or5KE225Ng4WhnaSTZEblpzbon2nlPSMVZsTJiMoI7lJGS2k4yC3cZdMlRxFV9CWRplhau5rrbWW0ensalJufmLd261l42j0jauAMo927fuRpEAQc1rfhjRfB+utdUt/FHWer9E1KppG6Pqun9Nt9V0hcXnOuTqOimzqLgawEXSHT6zShLpd7xuKFSvV4vv77zAsZHe+0Mts+9zfglpWN2Uc9jHsQZKWuWoVq8STrWsRx/eU70npx2KjQPFFCs5hj8aLUay8h/N6L8oy71P8AOS6CyvHtiGIYDcrkAMhBjOPPxZ0f4Z6TqVX4b+KR8Sae56FxHPS9V0+7btXtLbvH1zdPoi9auP6F/TW9z2L63LbXH9Le/wD/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAICAwEAAAAAAAAAAAAAAAYHBAUBAgMI/8QANhAAAgICAQMBBQYCCwAAAAAAAQIAAwQRBRIhMQYTQVFhcQcUIjKBkSNSFSZCVKGissHR4fD/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQMEAgUG/8QAJBEAAgMAAgECBwAAAAAAAAAAAAECAxEhMRIEYQUTFCIyceH/2gAMAwEAAhEDEQA/APqmIiAIiIAiIJA8nUARPJsqhXCNfUHPYKXGzPWAIiIAiIgCIiAIiIAiIgCImn5zNto2le99OwB5MN4DI5HlKsNgpVnb4Ca58hrWFtrdPV4Q+dfQeJqcbIRQ9jgs/ksx2ZmYtY2bj3J795UpaWOKRlBKfaLd7MBx42vectyOb1BakRFQ6/iDZb/id6slT+XQZe+jMDNySQ+w1bk/2fd85L/YRscznlxa62tpP4u2+rtv4TJxuRsuCt7MAHuVJ0dSLV5eXkY1lGRTTa2x0vor47gke4z0F/J6RqRikg6YOW7/AC7eJwpvfY7daz3JolqPrTDZ9x8zvI3x2VkXhfvFHQQxHQrb+hkho37Mb3+stjLSmSw7xETogREQBERAExOVqS3BtLKGKqWB+GplzrYoetkPhgRAInSlFq/xFVgfiJtaMelk0uxr3AyP46sgep9hlJU7m0452NY6uza0Zl+Y08L/AB1Hpk46K20LAj3iajkaK7gA91g127amTyl7p1ANr9ZEORzbS5/iED6zNZ6jnxwuhVxuknosSmoIu+ke86mdj346rs9Pf4tvcrnK5PVPR7Qk/WZPp++y/IXqZiJ19RLyUUiFUmtbLP41ktcCtQqfIam3HbxNVwVZWrevdNrN1e5yZZ9iIidnIiIgCIiAIiIBEeRQ18pkj4v1fuNzIxHOxsTvzqdOf1fzKDPHFOmmOxZI0Qeo1/OuoLb32kI5a6ob/E37SW+oAahbYSqqAWLMQAAPifpKyz+e43NtCYufTa7/AJQD+b6dtGYp/ka64SlHUujqL6DcBqx/8JNvSfSXHs6lB+JOzK9pYG0b8yxvRSlmU61Fb2SOZrIlm8apGON+ZlzyxhqlZ6z2F0eexERJIEREAREQBERANJ6iT8dL/Iia2htMJuufTeKjfyt/tIy19tedjVpUz1OWDuPCaHbf1PaZb+9L6ujVfaGd+meXJ/udv+gz5zw8p77PT1DU2KVurLMwOiNdtHwd+f0n0n6uxjyXD8hg0ugvux3rUMfBZSBv5eJR2P6W5vDyeJHIVJVj4Ngd3NysCAuhoA/+3MMmuT6H4fbXD081Jrf4zd1KWv8AfLM9EBVatWYBj4G+8r/Hr6b++vMmnpZv6w49S9JYV9ROu43Io5kjyLn9pbdQ1Wv0nacKNKB8pzPZPOEREAREQBERAEREAwOdBPF3MPKAN+xkUqyUdA6kaMmmYntMW1Nb2p7SnfUXD8njZ75PGX2ewbzWp7p89TN6jotqOPXGRRZxltuDlLXm2J7RB7TXUR+HfT7/ABqVbxnqewi3G5rFvLE/nQHQ909vtU47Kx7+GDWdbJiCuxl8huoknXw7yHYXIDEuItsybQD+FVfQMzKKcS56mTHI9VYXHoVxK3ewnYDb8/MmXL6Fp+8jjM91UXPWofQ+I3PnzK4/N5R0erACP27DzPoL7IqMmnisbHzARbUxGid6XyO8muEVJYJSbi9LRiInomQREQBERAEREAREQAe4lecstQyLsse0ORh9SuiHuw1vRHg/KWHItzPA3Hk7s/C6X9tWEsqI/Nrejv8AWU3xco8FlcknyVJd629J8nnVfeqb0vZekPbT7vhsGavkOG9IDM/pFXcFfxFEBIJ+OppPWfoTkMXlrLBx2f8AdrnLp7FAzVMT4IJHb5zBx+Hz661R8HlGK9u9Srv/ADzI6s64L/PWSXjvU3Hchy1HH8VRkks3e0qFAUdyfeZc3oxjZnkKgWtEJ7e8ym/Q/pfk6cu/JwODynvv0im7stY9+27Dv9ZffpHh8ni8Mtn2o+S/lax+FPkPjFFTVmpcE2yXhy+TfxET0TGIiIAiIgCIiAIiIAiIgAgHzOOhf5R+0RAOYiIAiIgCYHKffOqk4da2Ls+0Bs6D8tH/AKiIZ1F49zTji3yrdvl470N3GjYGHn3RESEJtOTxYf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGAwQHAQII/8QANxAAAQMCBAMFBgYBBQAAAAAAAQACAwQRBQYSIRMxQQciUWGRFCMycYHBFVKhsdHhJTNCQ2Lw/8QAGgEBAAIDAQAAAAAAAAAAAAAAAAMFAQIEBv/EACYRAAICAQMDAwUAAAAAAAAAAAABAhEDBCExEhNRIkFxBRRh0fD/2gAMAwEAAhEDEQA/AP1SiIgCIiAIiIAiEgC55LFT1ENSwup5o5Wg2JY4OAPhsgoyoiIAiIgCIiAIiIAiIgCw1NVBTN1TytYPMrMqLjENSKuTjB+rUSCeoWmSTjG0rMN0SWN52w3ComudFVVD3kiOOKPd5HzIt9VzDOfbS4UP+Kc3Cmg2fPOziSbGxDW20gjxN/IdVhxjL+LyVtViFVXy10McZ9no44raXX2tY7W8evVUes7LJ8Vw2Sevk9mjc/UwaiwtJ2IcSOXXldcbzZJe5ZaWGn7fXN3L+9iFxLPOZMSmmr6bHqqrw5wdE+JweGyOI2BAB2GxtYKx5Jzvi9LlORpzDRUlXzhcacksaHkFp8Tcci0mxUNh2SWU0TsGZLU4e+acuZUNc8l72Ns0gWsGm/NSeD5fxJ9PDS0+KV7MXkkLhLO3VpA2tfax23DvG6jcpXaLG8fTUuGr+PB0nCu1eopaaCnnpm1tTwm6nzVDY+I/mS0gEePd2PQLoOFZ4wTEntjpquKSUtDiyN4cW7XII53HUW2XBsPyViVRic9TXwMFaT7ySaPuyHbvANs0cjuN/FXjKuW6rCaumq5a1r5mF4lZHTsDZGnkC496/PfnvZSRzzi6bK7UrStXF1LwtzsdPVwVLQYZWuv4LN1VOwqjqHVQcwOjYTfyHkFcGghoubmy68U3NW1RWp2eoiKQyEREAREQBQ2Z2XpoXjm19vUf0plR+OxcXDZN7aSHei0yJuDo1lwVVtTw9iGu+YWV+IU7oy2SFhBFjdacrTvbdRlTe5HIKolqJwObuNG9U10DNmsDWgbDwUZLjUDHEWNvAdVo1RtGSbFV+ofaS4XNLVyvgz1ss8mZqaMd2Eu+qwuzfKB7inaD4qqSkF2w9Flgh1uAJss/c5Hw6N1I6h2dYhW4lW1stU4GONjWgDoSf4CvgVP7MqD2XB5pi7UZ5Nj5Af2VcFdaVSWJdXJNHgIiLoMhERAEREAWGsZxKSZviwj9FmQi4IWGrQOfSbKNq3k3FxbzW3Wng1EzS4nvWseltlE1EtnblefzSrY4HyaNcX6XAW+V1Wa172kkBhHzWxmPHfw2lglbBd88xhaJDpAt1J322/VVibHZ3YnTUk9NCzjk2Mb3Eg2uSbgfVQRwyl6vY7Mejyzx9xLb9ckxDJJ+VoPndbsGp7hrcTc/ILTY4u7zj3jzupGh/wBRm9t+fQeaEVHbcmRCHLVE0C12l3qSppaeCxcHCKOP8sLf2W4vS41UEidcBERbmQiIgCIiAIiIDluY5DFmOth6Aax9SVCVMlyd1ZM8xcPHZHgbvja77fZVOT3h0jm42Fl5rVbZGjikvUyldpT3SYZhjozpearuk9DY7quD2l2Z8MdVsjj94/S1jwfE36+I9Nlbcx5eqqvB6WkbOHT003E1nbVubi4vY7/ooWgwDEPxmlqZmwt4INmRHVq2sDy/9YKXFOMYON77l9ptTjjo+22rXV87k+wkWs1zjfkBcKYwpvEnY2wuXAee6jIo3xlpe1zbi4uOasGWIuNjFGzo6Zgt9QoI7ySKc7pEzRExn5QAvpEXpycIiIAiIgCIiAIiIDn/AGmw3qKZ+4EkTmXBtyPj9VzymbLCHMlmfIL3br3LfK66p2kQl2HUswFxHIWk+Fx/S5fUGxK8/r7jlkvJy5F6j2WvqGfDM7qN1HVddO+UuBDOXwjwv/JXsz1pPJLlyRnLyI2bDZZJntMri4gWF+itmQouLmSiA5tfqP0BKqUA3V97MItePF9h7uFzvWw+6n066ssV+TePJ1dERekJwiIgCIiAIiIAiIgIPOrNeW6v/rpd6OC45VNI1dV3ivpI66imppweHK0tNua5Rj+T8WonPdTx+1w9HRjf6jn+6qfqOCc2pxVkOWLuykzvsfhP6LAXAnk70WxWQ1UTyJqWVpG1jt+9liZFO892mmJ8gP5VVGLNEZYdunqV0vsnh1VFdOf9rGs9Tf7KmYTljHMTc0U9C+KM/wDJMC1o+p+1113J2Xm5ew50LpeNUSu1SvtYXtsB5BWOiwT7im1siSC3J5ERXRKEREAREQBERAEREAREQHjmtd8QB+YXjWNabta0fIIiA+kREAREQBaGKe2aoTRxtkbc8QGTQfKx/pERm0XTurPMLfVS3fV074HbixkDhz6IiLCE2nJ0qP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAMBAQEBAQAAAAAAAAAAAAUGBwQDAgEI/8QAMxAAAQQBAwMCBAQFBQAAAAAAAQACAwQRBRIhBjFRE0EHFCJhI3GRoTJCUoGxgsHR4fD/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAwQFAgEG/8QAKBEAAgICAgECBQUAAAAAAAAAAAECAwQREiExIkETFDJRwSNxodHw/9oADAMBAAIRAxEAPwD+qUREAREQBERAERckup0Ybraktyuy05u8QukAeW+cd8JvR6k34OtEBBAII5RDwIiIAiIgCIiAIiIAvOxPHXiMkrg1oXoq1r05lsuYT9MXGM++O6q5l7oqc4rbJaa1ZNRZzdV9dUOm9KkvWopHxtIa1oIaXOPYc9uyxTqz4ya7qWlywafAyqAXSu+Xc4zvhGcEfbyQc8eCVN/EvSeo9bcyvp9YnTxjcGEEv8k59h4WV670l1PpkcUVHRL9+xuO2QxuIb7DhpGPKzMbOnbH9WXb9vHRvQwqa48lrfn7/wAHfH8TepLdiW71BfqRMmYwQV3udhzmj6XMaDtDgcnnIP6KG1axqerGO7G6WxIS43LE8hc5oHLXbTycAEYHHCluoeh+qLvSNU6hpNj1Xt3zucwARHAwSO4AIHZV7TNF1o0WPlgvXZZNjCY3vblgd2+keRwSp/ixl5ZNGHDuvXjz+C00/ip1PpbdOv0b9nWtJjLGGKtX9Brdo5je0g8kAkOBwf2W4/C/4uad1zTlf8s6jYjdzE5+/LSeDnA58hfzbFo8ltlt+pVtQplrflxS9Bzs7Tw7G3nsMAc8Hn2W3fC7odmiUm2XMir25zgtjYWRlueHYcAW54JHn2C4ysqdMN1/V7FOePVNbn/v7Nor3q87w2OUF55DTwSulVypSu1bkb2+k+Ls5pPP5hWJucDKuYV9t0H8aPFoyL64wfoe0fqIiukIREQBERAFE9QVI31nWA3EzcfUO5HgqWXPqMfq0Z2DuWHC4sjyg0dQfGSZV6c4a4Asz9wVKxua9uQXKIgGDnjKlarjsK+fhJqXGRoz01sjbdlkMrhKHSNPYOAOPyUBdubiR60oHgHCkNdLxuIA45VJ1O1I3ODhfN590rJ8NbRqY0IqPL3JyDUflpmv3zyY7NLuFK09QltEF4DW+wc7OFmbb8pk/jOBz3Vp6TmdamBLieVawqZOGlHSF2vqZqmkbnxB0jy4AcBSS49Lj2VRx3XYvuKIuNaTPnLXuTaCIilIwiIgCIiAIiICpmPZPI0fyuI/dd1Y4ByF4XWbNSseC7P6he9c8FUJ0w570WYzfEgNdeA53+FnmuSAF2TgK+dQZh9SQkBvJyfZZ9rRErfUjduYeQR7hZVuDS58tF+q6aiQjJ4hIQS854+kf8rROhWxgN9OLH3cclZxCxr5BnutR6HjDY2kdlcoqjB+lHF1knHs0ymMVmZ8L2XxAMQsH2C+1roymERF6AiIgCIiAIiICD1hm27u/qaF4wOwuzXG/XC7yCFEuc6E+o0Zb/MFWt6ZPX2ig/G+3JU6SkkilfFuswseWuIJaScjjn2WV6TcI6jnrwWJJKwqF5aZC9u7dgHn7f5WqfGyvNb6PDqkLpy21DIQ1u76QTkkeOQsp6cqmXXLkkFb0IBUDd4jLBuLgSOffuqUvc+jxVH5Fv8Af8E3Rk9Sxhvla70azETAByVlmh6fDVmAbucSckuOSti6Ri4iHkhdU9y6MjIfpLy0YaAiItQzAiIgCIiAIiIAiIgI/WW5rsd4cobc3Ia4tyfYnurBqTd1N/2wVWjXj+YM238TGM/ZVryaohLOnXIGyCDUSGE7gHR7iOSe+fv+ypOuwW9gdYtAPaSSQOPf/Yj9Fpd4fhlUDqasbEcjASCcqjNlutbKxVvxQ4cHiQtwCfJWydD75GwF4w7bk/osQ0XpydlsCSQFm/J/LK3rotv8RHZrVLQlzWj3J0odFrREWkZoREQBERAEREAREQHzKN0Tx5BVbkGPZWZRFyhKCTCA9vj3Chui2uiStpPsg7eCw5yP7Kq6pHGXElx/RW24x7AQ+GUf6VV9TzkhsFl58Njys6yL+xdrkiKqsiEw2hxOfcYWk9E1/QouH/uTlUDTNK1q7ZaKukyxR+81n6Ggfl3P9srVdGomhSbE94kk7ucBgZ+ynxK5J7aI8ma1pM7kRFoFIIiIAiIgCIiAIiIAiIgCIiAIiIAiIgC4NU+c3QmnG2RuT6gMmw/bB/6REZ1F6e9bPzS32pcvt13wO5GDIHDv7IiLxCbTk9LR/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAYHBAUIAwIB/8QANxAAAQQBAgMGBQEGBwAAAAAAAQACAwQRBSEGEjEHEyJBUXFhgZGhwRQIFTJy4fAjM0NSYrHR/8QAGQEBAAMBAQAAAAAAAAAAAAAAAAEEBQMC/8QAJREAAgIBBAEDBQAAAAAAAAAAAAECEQMEEiExEyJBcQUyUeHw/9oADAMBAAIRAxEAPwDqlERAEREARF8vkYwZe5rR8ThAfSLWy69pEVlleXVKLLDzytiM7Q5x9AM5WySyWmuwiIhAREQBERAEREAREQBEVa9qnEV/TJDVpl7Mwh7Q3Yv6gkeuPRQ3SslK3RuuLuOqfD9gVmwSWp84cGOADT6epPwAULtavJdsC9enMbpThldx5n8v8ozygf2VX2laxFCJrE7HSWN3PlkPM4nPnncey3uiwNDnX35c5/iwTnKreRyZeeGONcr9knjjpNsR3hV5Z+gBj8WfQeq9ZOLuJGyMhpRQQQ13cuLDed0vwdg7fLdNN16JwzEA2eLfld5f0Ua4g1eSTvzLHJXsOdnMXljoR8EbSXDJhFt0438k21vtP/dVau+bSyTKOUv73wc+N2jbPstro/F9y8I3vqQtaQHOjyWuA9zt8iqbg1vWNQ0yxRvVKdh/MCyZzSzcbgkDYO9CFkVtQ4kHJJUOnF48L2y8/i+GebAXlZZbu+DpLTQ2VVS+ToetqFawWtZK0SOGQxxw7+/ZZaprhbVdT1F0I1GjyESOYYI38+OmD7HP2Vt6YHtpsbI4uI2BccnHv5qzCe9FDLieN0zKREXs5BERAEREAUe4+oQXuFdQ76FkroYXTRkjdpaM5B8tgpCvK5A2zUmgfu2VjmH2IwoatEp07OdKX7qtxgW4oJIzjPeNz9+qm2j6ZpM8HLCXNwMBrZDgfVVPXry1jZoWA5ksTnQvB6gg4/ClPB08vcsMmRIByu9wsueaUWbMMClC7N9q2l1Ypy6u6djm9XMI+6iOvUadshti5ZLmbbFpJHoV5cV6hPFNK1szhv05sfNV3qepTvkOZnYPxXOOWU3VFnwLHHdZaFK1Xo1GxNDmxDbLiBn5rdabrGk14iXsh8W3jkL8/IYCoS5qrjXEfeucQeuVl8Lzy2L0fM9xGV3bkVlGL7OoeCLUWpW421YhDWad2saGBwA8/M/VWO0BoAAAA8gq+7KaboqZlLTjlxn3Vgq5gT2WzN1LXkpBERdiuEREAREQBD0REBzZx5AanHutsG3NP3uD/wA2h35K9eH7Du9AczPxBWy7YqfccfGcbCxUjf7kEt/AWj0R+JgsjUqps3NK92NGk43ez9ZJnnbg+gVcanNECcOd9FYHHJ5J5HnAG5Vb3JWWA58ZJBznIwpwr3OuaXpo1vexGUeFz/XfCnnARDrkYgrxh2ep8R/8UBjbGZcE758h0Vn9l8AN6M48xsu+ThFXGdS8DRvj0YGT+Ikf9KRLV8NN5dJi+JJ/C2iuw+1GXkdyYREXo8BERAEREAREQFR9uVQC5pNvG7o5Is+xB/JVb6dKGWAM7hXF21V+84eqTj/SsgfJzSPwqKstkjkFiv8A5rfI9HD0WZq4+s2NBL0UYfH0ma9h7ThwjcQc7qs7j4RDUMO0jsc2D8N1YnE8zdR0eWWEEuMbhy+YONxhV5a5XNqMZG1r2jLyG4OcefqvGDo1Wl4n/exi1/FPjO6tvsz8FqIDqSFU1WJsU/N1cTuSrh7Lo+a5E4/Q+a65TLguGdTaCws0io09eQH67rPXlUZ3dWFn+1gH2XqtBcIx27dhERSQEREAREQBERARXtPr/qOC7+28XJIPk4fjK52s2IoZg2WRjC84aHHGfZdRcSVjc0DUa4GXSQPAHqcbfdcsarShkuMmkZ/ix7NJ8lQ1i5TNT6c+0eM0daF7pO7L2O/iY12ATknPTr0HyUZ1manHI2RtYuwPE1ztgd/qpDaI7sgdFEdYZz8w6E+arYXzyaGePBoJ7Vd0+a8fdtaMEc2d/XKt3saD7d2qCN5JBy+xIVMM0uQ2DhwwSr77Cq4PEenQtORGQT8gSrM6bSRUjahJv8HT4REV8xgiIgCIiAIiIAiIgC5j4srGvqtxnKDySuGOnmV04qp7QuANQuXZ7+hmOcSkufVeeUh3mWnp8lV1eOU4raXtDljjm9zooqzI0A8we37rTW2xOG7nZ/lKlGuaPqunPc2/o+oQH17kkfVRa4yYkhlO853o2uSVRhCSfRsZMkGuzXtELZBs93ywrt/Z5p51+WbDcBjpNvbH5VU6PwZxdrlhrNJ4Z1Atccd9aZ3MY+Jc7H2XTXZDwFZ4PoSS6taisalO0Nc2EHu4m9eUE7n3+Ct48UtybM/UaiGxxT5LEREV0yQiIgCIiAIiIAiIgCIiAJgIiAYREQBERAFgap+s5oTTjbI3J7wGTkPwwf6IiM9RdO6s/NLfaly+3XfA7cYMgcOvkiIoQm05OlR//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAEEAwEBAQAAAAAAAAAAAAgGBwkKAQQFAwIL/8QAOhAAAQQBAwMCBQEFBQkAAAAAAwECBAUGAAcRCBIhEzEUFSJBUQkWJWFxkQoXMlKxIyRiY4GSocHh/8QAHQEBAAEEAwEAAAAAAAAAAAAAAAYBAgcIAwQFCf/EADgRAAIBAwMDAwIDCAEDBQAAAAECAwAEEQUSIQYTMQciQRRRFTJxCBYjQmGBkbHwJUOhUlPBwvH/2gAMAwEAAhEDEQA/AN/jSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKUVUTyq8J+V0pXRJZ14ZoK4s2IOwlCMaLBJICybJDH4Q5Y8Rz0knGFXIhSBE9g1VEe5OdOfODgcE44Gf6+P8AFUyM4yM4zjPOPvjzio24H1p9Ku5292a9OGAb7beZXvdt58Q3L9vKa7ZKu6k8JEWxhNeg219jY1KL++q2qmzp1K5pGWYIrwmaO8xuFLFeBjPIJXdjaWUHcoORgsADng03AbcgjdnaSCA2PIVsbSeDwDngnwM1JCNbVkyXNgRLCDJm1rhssIceXHNKgvM1HiZNjCK88RxWKjxtkDGr2qjmoqKi6s+AcHB8ceaZB4BGR5GfFd9FRfZUX+Sov+mlVrnSlNKU0pTSlNKU0pTSlNKU0pXl3V1VY7UWl9eT41XTUtfNtrazmEQUOura2KWbPmyjL9Io8SIA0gzlX6RjcvHjVQCSAAST4ABJP9Bj5/pVCQBkkAfckAf5NaDPVn/a39ydxbzeTaPpb2kqdtMBuanJMd2/3ttMpkv3nrK8ZPgQbi11G6qssOoLCeJzJFPTHh5BYVA50eUkwlpGVoUborgujSJg4IOCT4yFIbcFbJ2EjIXBwDXI0LMnD7XyCRtLLgEHBcOuNy8ZAOM8c4zrO1fWzutlvU9bbo7r7/7/AI7zGsEzaHgm6UXda9uNxcQyaix6wftbMtpd0cs23qJt0kcOY41Wmh2U+ouLazqJEaRDA11smBI0jyPEi7liwT7RztBiGQzMT7lA9xbPAAxyo2YljjiimLNG0okXjOUEhRxhgVXlGB4KhT5yfcwvcTKdgN19ksipa0eD794fuLS5VE3VppWVYZZVgMyrKLIcVyC3v8dyW4TcTHli3EzK35a4bpcgHxeNSUtgyZNctyuEKM8KNJuyWYMn5/G8KzmRWBLHJGQSpBXBozNIsqiaTt7CAi7WxsPIVXRBGy4CqEzhsuCDzUyNkuuHezp86t8qzTZvqUqMZ3VTMNxFrNzsihWO4NLuM+O3MoOYAz/0FhtybBNwQHrtwcbXcllzNwjLolRZfFkgNlST3K4dirMABJtGQSJFUtuBZNoVT7SpfBUg54Jqw7QiMY2ZTGpKghDGz7QhAYMWYYYOE/Op/LuBFZZ+lr+0U9Z3T/tpXVWWWEvr1vLnIhXFyXc3CrXaHJ8ag14LCy3ExXbnOq6ZJo9zPlkcZJTB2ldTzsSDSWh6qiybGihlQhwAqkF25JcIYshVLOoyCkjL5BXaQAwIYANVSqNufHZGAAokE4DMQqO4ADxqflcuCWXaQSVrcq6K/wBQ7po65dqtt9wdrc8x+pyvcDHFvJWyeT5NjUPeLEJcNTDuau+wgNoW5UdeWOY8W5jQ31dzTOiXsAzoExjmWKCyBwrbCNwYqRxnGWH8pzxj74weRXHIrRO0b4DKcHzgnyMEgZyPjyOQQCCBOfSraaUppSmlKaUppSmlKoHc/LD4Pgt/lEYYyFqwR3d5mPIGKOVOiwizzjH9RA145LphR8ta9oVa942K57b4wrOoYkKT7iMZx8+askLBGKDLAe0H7548f6+fFfy5/wBVTrj/AFLt2d+t14XUNdbsbU4OfJbqn2exNsEldilNt+3LjVYVxeTR2tZXW1tk+PCrA3Vz6tjEuGWkytswshOro7bDeSI7oo7AXhERCHIJOH7vlty4H5mU5xgZzXZjt4HSPYROcAzSuzFd20v2+0V2qFOcewNxnJIwMLG5OUZTTY5YY9KLkYrqjyO7xyfFso1PXUlDIj17oVjShoIgmTsay2rlQjPtAQlZSSYkaK2QIlrBUkixe6dwd3GfAYKoAAXgKnghhzjCn5OcgpWiLKyKhBXcChZidx/9TfmXnPuO7PIIFfXDsAy/cLB7u0r6zMMmqcCxhuYZ6YLHhx/EqaQ9cdi5VfZO8koddNLezKuqjOlRD/ODkFTgQ6PSOlQxkDA911UFmHIWPA2j3eNw4BJHu8ZyKptMYVlZI3b2jnlycMVIxzuUE8EYP+atw99pNBXYYe8sqWzoJDmTWW7zuqqesGaZZWcZkMEB1jCbNsCQTyAhIOEQnM2WjgNExlBtXKs5BPG5s7VBySCoGRzj7nJ5+9UyxYFQrLkOwUYZiMAZJOGYAng44JP3zM6i3jjM2+29xzMp2aGwmszyfc3pcRyiK7L5ZWy4xoldgFhaY7Idt6lfjke5hZFcRZU2PlUudXzZEVSY6OMyqyMVCNJI6IWZgjjeCMYCnaNgK553EE/YgiqyR4csEjRmVQm9CUORyXwTv5xgFVKAN5zkVHj7dzM3yDdWwwW/y61rLXHyZRPt5VaLJaqwwivyaLTY3lW5p/lToEG9xSzmUVTkW4yVQD092KWaQQgb08g3GJD3JCAwThmkYZTaCFWSUAbVKOwBkwCCDkkE1zhQI4QXQyAsojU4bIBdkjbIJV13MseTkNjjaSJ8fp04JuDUdVuHW+1uHwc43hpMt2dnY9uRtXjeWwLnay8xu6rcoymzsMMw+oi0Maltq6Vku1+YGytmM0tpSsDIsux75Kt47m5azWR4bP6ycFVWK2CrJI//AHECELGSyswILoPDELg448m5VRJMYIdsgzO+VUEbY2EhLOCjBWXarNyVUng1/UP2wyWxyfHGTLP0XygvYEpY7hlApVEwhQNOFxI53xXO9IhAGKznhvqEVqkf2yQdp7ZiJVS0ZIJjYjJTKkg7fBIJGQcHGK6ce8LhyGIJG7BXI++DyM+QDzg4OKuPqlclNKU0pTSlNKU0pXyOEUgJY5xjMEw3iKErGkEUZGq14yje1zCDe1Va9j2ua5qq1yKiqmlK1wuunDco2l3E6hMkttkajNdisSxCkz3b2LiFTDs7kVrK+DHlOOSsWuI02jV1fJKuR00+EOA+NEQ0dVcOPyGH6jrVxaalLYw3sduXuLDat7FHNbdq5hYlkdGSWNhNHsdS2AJFYcHNS/TtJstRsbWUgSXRNxFJGrMk7NEWdCoI2urx4VTk5dSp9xGcAm7G2nRMLE6S96ndsdqP2m3xs5+RbVX59pcgw+VKfdrHlRT5m/CJrUFkCSZ425FcSHme97nGCYvHOvJm6t1ifULkaVolhexaQ/a1hU1JYZN249yW27nDhkBaJcF3YbSNx55/3asFiAnubq275K2rdvuIp4GxxtYk5/MWAUfGCDVgbbpW6EdrKc+E7/1OxOy26O4dYImI4ZO3P3kdimQ0Me+d8kvLMpJM6rj+tNEha+xIKKeGYxxOaEylcnPb9a/ibCfQenNU1XTQxhv7m2uLZJbefartEkFxKsjSRAkuCpz5jJON3Vk6bWBil3qawSn3wK8WVZckZ3xpgBhgcEEfcAcdaV0idEGxdJf5x1x7Y2W3VjuPknw2D09Vuce7LuVTw4wJU3I6GxraqeOvxdvqxAjeOZDmSAv/ANtG5HHV3cturIdVnks9Ds5L76eFfxC4vLlbd7GcuRHbTIVL99lDGRFG0KjZYEKDwy9PyWyK8l0IlZj20htu4HBAy2SV+4Cknzx4JInLbdDnSF+yO0Qunz9PTcbqb2qzuulZhjdhN3hyzFsYxi/syRKm1jWMe7+VWUOPZMgQLKTMY5KyUeCO3QTiiUxeK16ssbf8QTXZ4bC5tJnVYEuRMZYSisksSxgkhwQTFnepI3gEkmraJJIYe1LuV40DSSRLGUbkkMTnlQcZGcglRmr9bR1XQQPcvJek3YvYTAcR6qsUwTI5E7Dz4Fc5DgVVmNFXxbqXjRczzqwSDf18K2LCnFK2nHUz5MclsMbJbY5deBrnVuvaRaw69c6VpsHTs91bKZpNQnuNRls52wshtIgsSSNxtVpXZSVDKwFd606dsLhnhjurmaeOM4ZYVihVuUGHCs5XgjPBK+G5qhOjbqk6h97c5xzYT9gbD9pMU6xaDbPczLsFx5MK2kfjkRt9Z5akOloodcJ8SqHSurSFvSSz2kixr7IyAEaLFd37/qHUBrNmqaxaWek6locd3a6RbpHDqb3d5e2dvbLLKO47iUXBeQwshQJIgB5kF9toenJaTSmxlkmtpJ995cM7xCKCCSRnRXKjh0VEBBwWX5GK3loUOLXxQQoMcMSJFGgY8aOJgQAEP6WDEIaNYxrURERERPyvKqq6yR/zk5/p81B/NdrSlNKU0pTSlNKU0pTSlQ66iK8obQ8sgUfGsacHY5UY5pHxVLHksc1eUXgbwdzXJ2q16eVTnjB3qVZ3cOppfwgiGewiUup5EtrK4YY8hgjJhyACCBkYJqY9OTRmIxMcvHKxA+wcKQSfHkN/j4OKwwb57RbYbtDj4/uVtlj249PUzXzKuDPgxfiKw/KMaSA9FjmhmRGtH60KQHvY1rXorU4TUG9609QujdX1O+sFm1SGeWV4brTZIo7oWzOzxW1zbysIrhoshFmLHdjcSMsBsXpGidL67p1tDc3iaZcRqglW6jaS3lkVcmWOSMEoWJ3beMEkZxiqV3j/AE2+kPq/Pt7e7zbZHk3OD1QaillVd5Z0E9lGjxnTH7Z1fIQdjACdjnMGbko3PKjDdpXNdJOlPVPqfQba4ktHiiTVZBd3NreRAyxXcqLvbguFlGdkhVmTIAHtArxdY6Y06WbtZWYWxaOG5iAeOVFY7XUMA2GADDIBx55y1ZJX9NWwWbYLiuA5rtHgWaYjhgakWL02W49AyGNSfJYoYVYSA+yAc4DR4wAi9YRGuINqMKr2fTr2dD6m1Zp5r2K5eCW9keS6eGUxpI0hZn3beHJJ4PO0YA4OajWo2McACICNqgLleePnkcjIPjwf0q8sbZbbyRY0VuSkcN2NgYKmq40+dBoYTR9qB9OjilDAeoWtYwPeLsYxqMQfY3zJ/wB4LuFLm3gFti6TdNO8QmuP4hG8LPKXZTJwCBtI4/lxXiCzifa8m8sGxjIVfaCM4ABwCRyTyST5qkU6fdjMT3JyvenH9q8LqN18vhRq/Jc/i00ZMmtoUSOGKGMSxejyBE4AQjO2KgFmNEJZTjK1nbDOqeqNVn0qOxvLqT6KxAaCFtyrvZsqcMWDbct2yFAVfBGakOkWSGT+GBmQ4YAArx5JwMZ+MkkAk4HxXS2iw+vibpVECorayH8yy+XlFiCqr4UASijL8dLlHbFEFTlI6MH4yYZSSZUk6KYj1ViJ2PTC6v8Aqf1J6ejimub610pVubqdyJESK0V5cO4OFjjkEMUe5i26QIqgnAr1XHDp3TOpO6LBJPELe3XJ3F5m2EhT8srSMVUABELE/Jyfp7fj8/z++t9R4GftWvdNVpTSlNKU0pTSlNKU0pUX+pYDlr8alj5RzCXUV6ovHKFiRjMRVTzwihc7jlOVTWK/VBWW10i4RtrR3F7HwwXd3LXcAeNxUGMsQpyT5yuRUm6abE10uMho4mxjIG1zk/4bH+uaxBZUc48jOnqM7nHVq8gY9VVVRqKr2djlVfDU7l458++tOuqLmHuzM+0zFlRlEILe4gHc6hGY5CrhuASfDE1nvp9C0aAblXYSMPt8ZI4bIA/Nkf0+RiruYXKlo0DUfFVOGr2p6rXKiqnCdqEcvhVRUVrW+eeU4XWNHkM7hIljCvInCmeMkmUAAKrPgg8hBxk8ZGalciIigs0hYZwD2n/k5ycL9iMkH4z/AEk7guTRrKO51dJgzxAMaMV8UhTtQ8YjgnD3Ma5vqBKjhkb3fSRrmq7nlEyH0szXNss1lLp81rFPNbGeO87u64s52guIVaJZQZoJlkhmi/7cqMjH2ECI63aG3lVbmO5ikdI5AkkSqFimTfHJh3VtjqQyHByrAjAPuvVFlSHjRWiGzlE5VzCKqcpyvKd7U888onlefHCcKmp0TKo2xxRKVXduBmdgvtYkj2ZBPHyRxjgYEXaKE8uzkcjH8NQf5RjhsZ/uPkbuKobLiGSObvlOTw5eBtYzhV8Jyrkc5VTnzwnjlP5rijrW5nijkJud2w7kEUKbcnhTmVZOVJILKDtJxnAGZdoMcJdSIQOAMszH2jknClBySOM8jPPNeb02xmSt2rA/b3EgYlbHcV697mrJsKiG1iPXynejnr2p4Xsd/DWWv2T4Hm1bqC8kLP2LAJvDblDzXMS7fABO1Cx4Hu3YGeTG/WCRY9M02BAqrJeKQoXHCW8rbhx5ywHLMeMZxjOQXW8la/00pTSlNKU0pTSlNKU0pUf+oqI02H1spW9yxL0Sc/diSq6eHlOEXhFVGtVV/P541j71Hs4rrRIJZEVjaX6SxsRkoz29xEWHB87ypHypPzXv9OSMl86KcGSBgfsQskb8/oQCB8nisPGcwlFdlN9PKG48onbypE5VffhFavnxz48/4udaVdUWpMs+1oy6ttKtnbuPJYgA43Z+y+7PLZyNgunDmKN1U7TzlQdx4/rkAjz84B+a86VZ2tBUdtL6Tb/IZK0eOOcoTHSzltjR4pjK8bpDwAhjnT5TGE4YQYlKjUTl2KtV1U2doIYD29X1e4t9D0RcOB+K38jg3JiJKlNJtlk1SVshYo7Jsk7kzN9N04XNyZpCTZWEcl/fM2wD6WBRiMuRwbmTbAvOWM32Bx2cP6vOlfbFJOG2m/uC18vB5siqvWfGWUwFNc1zDxruPe3VdRy6RLSvsnyksyGsvhIUoJAS3DcGW4ObOk+i77SdK03S9J0O/j0WzsYYLSVbdil0vteW5aR3ErteStJPNKQJJ5ZZXOd/Pd1b0r9WOojFrkfRWuzx6vFHqFgCtnDNcWVwmbGa0spruK8kieJozZhLZu7G0TRBw6M2TWluZljQ1dpXLEnQ7KDGs489kuOePMg2I0mwjwjRDOAUBa84Xxjse8RROGdriNcrnezJNGsJjVpd4do2HaYEMgKuGHw6lf1JJzggGsIPBcR3DwTxOksTvHJFKGilSWNyskLxsFeOSNw0bq6qyOpU85FUZmk1iCO1HqvCKqeU44/PHHnwnnnn8c8awr1qxkDoX25bceQVxychW5BwAGUnaRgE+WM50KMxgMR8EAYwwPyDjzzyOMZ548D1OkD95ZpujZtVHMqqvFKhFTjj1rGVdWZ2p557vRixHPT8KxV8qmtnf2WLBYdK6guPLs2nISACCsjXciYIALErGGZvBBVsnNY89YJT/wBFjII7j30gB3ZxEtrFn3c43u6jPOVYZOKnzrbOsJ00pTSlNKU0pTSlNKU0pVn99IqyNurUiN5+DlVcvnx4Rk4YXr5/LDub/Jy8fjUY6xh73T2oDGTGscoHH8ki5xkH+Uk8DP2r1tEfbqMAzjfvT9SUJAP9CwFYb9yRdlgUiIvPnhOF7eVcqovHlvKKipwq8L59uU50U6q/hX1yFLJkDazKWQhiducYXcpGBk5IIHGTjZLpVh9KmSPzYJPB9mAeeTzkcgYz881+sKEs+ZUOVoirEsQnC4rWOeIveglcNXN7hK5jlb3NVFVqqNeeV1AQ7sXkkWPvWrTSW08sMW+FnjeJ5YJGUusjwsyuVYAxu6A7Tgy+bbHBcIpdUlt3jkVHO1+WYB1BAYB8EA/OGxnGNUS13WjVO2fVFhsirsZV7Y7hb7soTjHPSGYEjI4xAyGzYcoA6+Rij5eT2UKNJiT23BzzQhPCUVh628miyFOnrOPB3/h1qFbax5NpbYKgYwYiXZVGS3uUchsfUg9FfXda+lWuLc2Kafb9O9AvqcUht2njkhsbgNEbWaNmu4tX7Ok2txIksAsYo7WSVJjJbAbsfTRJOXpi6c3sTgT9gdmnKvHDURdtMX9lReOFRU4VE5/C8L4wJqHuv759rIiX14GCNt3ETygsATtHke4KSNzcA818n+vIIh6hdeb2y/779WbRj5/eLUjzkcEZbjjPg5xX3zWT3gM1hfr7X8qiconK8+F54XzyirwvHHP38YX65e3EkXvcqSxYIm5FDH3BCGAyDwS2ApBIAJqulROMgIvIAHOCTxjdjPjgjHk4BJAFXu6LcbfUYrn9wYimPkOceq5/HDRhrqKtigjMVfLmhQjnqv8AnM/jxrcL9mi2jHRup6gisBf61sUtz7LHT7SBVQ4AKBmds4HvkfyCM4X9Xbtpdb02zOALHSVGAc5e5vLqd3b7MxKjGThUQVNHWxtYnppSmlKaUppSmlKaUppSrf7qRll7eZeFqcq2llSGp/xRFZKaqcIvlFDyn8U15Gvx93RdTT72U/P22oWz8eNuRjnjjmu9prhL+0Y+O+in9HOz/wC1YQd559lXNFIqhRjmdMVpGShkIMkdjUVzEULxuGRyqiMfy5EX3aqIqa+eXqjPrVpd6Z+BRWFw82pbdQOoW1xLG9hCm+RI5baaF4LpmeNoZXEiE8NGR42f6Dgtblbhb15oxHArRGCRVZZWYruYOrBl4IKjb84PINU/tnubi/z6lp7N76y3sJ4gR4xmuIw5Aq072iOxqNVyMY9Wte1ncjUVPqXjUDn1XSzd2mny3cdre6gJ4rewmcd+6ktoWmkFu4CpO6IjuCdoKKWAJyKmV9oupR2d3dwp9TbQxlnmjIAjEh2rvQksoJK5KlsHyMc1r9WvTT1kUmMdRu1tdsP1BWc/Oc83OlYu7EMPvbnb+fXZXczGy3y7uur5VdKBl1R8G2LPrbINfDGGrddPjo+2GDdDQOtOmJNDtII9fsu61jaKLc3AR1KW6RyxzRsA4kfZghTxhd3lq+hH79ek2pdR+m3WM3WPQtvZ9PaF0zDqrarqlnadQW9zpNtCYvp7K4mSdPwe5Mxkt7u2NxcM939CJCliZNv3YjGbrB+nzZPDcshNrsjxHZvbDF8ir/XDJ+CvMewWhqbaGkmO98Y6RZ8ORHU8cj45FF6gSPH2kXDmpSF7q7lhXcJru5eAjcWcSTP2iF4xkMvkgqcA4wQPmL1jqVprPXHWGsaZMZdP1TqvqXU7Cba8Pesr/Wr26tZjHIqyJ3YJkftuokAba6hgQLNlspF227yBSdldPtJUejAvhi1EFywwTWon0qtlIFJmteq8KAkdE8cawJ1Rqp1COBkeJYZLudbYsVJktUlMMV7kHBW5lilnjJIHZaI84JqX2lottJFbsrNNDbxSXjgYxcSqZ3gIPgW8UkcTAZbuLJzgEjID0uw1j7SVklUT96XOQzkens9iWZYLHf8AbCRv5Tt4+3CfQj0BsBY+lvTpBLfWfX3xYjG4zXsqKyjyEKQqUB8Lj74GsHqXcfUdYakB4gS0tgM5x27dHwT4JBkbJHk581InWZqgVNKU0pTSlNKU0pTSlNKV4mSxfjsdvoXHPxlNaRkTjnlTwZA04/jy5OP46615H3bS6i/9y3nTxn88Tr4+fNcsLbJonzjZLG2fttYHP/isHOfiZL7WPa3hOVcjk5VFcjE4VfsjXJyqonPjj88aEdZELMwdVAiaVgzKGxuIU5PwGK5JCnwBlRmtkOlpu2pwWy4UYBxlRnkfckE8Z+PnFRklbGiyrPKHMoeSXOP2lNJoVikrwwztiNpZlzJI6AstjlgrdjuHRLskfslS4tfWrElQTRlI/F2dGu59OuL/AE+2nn0e9ur+xuS0kDd2a2igeO4MbKJ4oxEHtrectbiR3d43GCMjm9ultryGOeVFvLRLaSNQkihEeR9ydwMYmfuETPFiRgiKrAA5mXhu1+5YLeudE3tyeVSFhX47H5oEC28KwtKeyraazpmR2fKivpZUwFiOJaR3wXyq+ORkcJWvMWR6JrOlOjquj2kVyJ7UQtE8gVoklV5BNkGRe8FZCV2sN7DJjAxB9SsbwEH62Rou3NvEh9294yEKD8uFyG2kMpxxgji98DaK3qJ0qc3dLLiY/Y3mRZBa4g4Y1qpZcjh2seZAHPlTZlnHgMk2IbQSNKSUtnVw5TpPeWf8VMdS1SF9KljezQO9kLQXCsUeOMKseUMIjAkZFdDIgTarHYAyIVjlhazW+oRzLNuEU/eCFCys35lDBt+5UJDBGZskHPDMGo3M2RauKKBCG0EOEEQADbz2jABjBsY1ETlEYxqNTzyvjn3Vdas9TXW7UYraBVigg7MMSnOBFCqIkaqACojjXaoDDIA45ArM+jo7xTTuzSSzdyR2OOZJCzMzMecs3JyAB9+ayL7C161mz230VU4c/HIs96f8y1Ie0IvsnKufMc5V48qqr99fWv00svoOgekbXAGzQdPc4x+aeEXDHjjkzE/fJOea066uuBddTa5NnOdSuYx9sQv2AB+gjx/YVd3U4qOU0pTSlNKU0pTSlNKU0pX5e1r2OY5OWvRWOT8td9Kp/RV1QjIx/wAx8/5GR/elYKNyhvr7i2r3IrDV9rYQDDejmvE+LMMJWOY76kcxrW9zXJyicL90XWg/qH3rHUL2BkGEubiHDLlVaN2XhQMqyqFJD4YAhgcHNbFdMkSRW0o4DxRSIQcAh1BBBPBAbcPkZB+eKpiisAVsGTZSVQYoQXHkOXlzRiGvLnqjU54a1EV3bwqeefpTzrxc3lhHNM17cfRwRRzTTuzkRRQx+4yyBfcoVPe5CkqoycKMnLNraSXXaihUSvK0ccQOA7MQwCqSccnON3k4wOeL+4duDUOigkpOj+n2Ne1/qNanYic8q1ypzw1eU8cqie34nnT1jY7I7s6laJaSIsguhNGqCIqCZGDMN0e0hk5HtOeMjHiatp18sjQ/TTF1JBTG7LA+AQPJPn4HyMYzIWuyKvv6EdhXyAyI72uahQPaQbnNVUdw5vKfSqcK33RUVOOU1IdZurGXS473S760v7K4Qm1vbGdLi2mCExuUljJiYxlWVhyVkQptBBxGIbO4tr5oLqGSGZWG+OVSjqpCsuVwCMjIyPKkEcGoy7k2LBukMcTtRzCsRfblytVEThV57lXhPblV7Woq/bWLVrhpuoYIWdEj+oXkjCMVxkHcysAATnzlkC5OWIyzpcO3T3IUszIAApycfcYGCP7jgn++XTDoPyzEsXre1WfL8dpIPYqKisWLVxQK1UXhUVFYqKipzzzz519q9CtzZ6Jo9oy7Ta6Xp9sVxjBhs4YyMfGCpGPjFaI6jL39Qvp927vXl1LnOc9yeRwc/OQQc/Pmqk16tdOmlKaUppSmlKaUppSmlK4Xwir+EXSlYQepQ6w91dxYTFYKSmU2EhRyGOaj0msjzgvT/A9GFFJarSMVUci9yKqe+knq7dRQdSa7aSqrhrxpWjlU9xO7FFKs0J4ZQyOACMo4BBBUtWfeiR3NM01ueIVjVkYZG1mQqQcjgg/pgDjjFqMGmSZwHssatsf1VkRjBWQOQMoUX00ejlYqOCdi9zUcrXtRyNe1r2uTWqeupDHdCUBDEyBt2Y5cqcJ23WVDyy5XBJDbwGBO+s0WYZFAjlJYBCpKMhVh7gQQR7lBxkZ8BgcEVfTFdrsTnOb8RWGQLkT/AHYcxQR0b7dvAns7W9q/dyc8KicKuuKzOmakjabeaKGtjGIzB9UIIGjIKvEVhniWFCjDA3gN71AY4Au1DVNUgXfHdxF+SZTCzPuwOQXViSSPOOCQc4PN7JY6bB6avoqGsjVcQz5Tghjv7BNVrPWkEdw1XKr3vRXq5yq57lVefOpZNLo3SXS8NhpGmWOlaVYrKllYWbLDY27XG+aVhGiEIDcEyzM5Z3lkZpCzHiLQLeaxqD3N3dS3Fw+wSTSpudwpCImSce1eBtGFXj5FQy3ByWTPz3bjH4khxZOR7m4VRrGhD9Ypgy7uMshv1I8jmNAxxiOGxvAxu5+n6V196F1S66p9TNAtIO0Wl6n6ctB2UNwVefWLNXCtJuyZIe4cxRooQFiQE2jLs+mw2HS+t3c6nt2nTWt3ZMrCJVaGwn7RIQpjEjIq7mIyVUAkkDYCT2/6u/1XX3hH/wAn/ZxXzlP9PsP9DP8A5rnVapTSlNKU0pTSlNKU0pTSlPfSlYg+tfox38y3cay3o6fb+oyEl6OvLlu12TSA15zy6ipj1IZOJXEwga1o58aHGJMrrGXWHjzRvPAsTBlOhR9UPXj0c6z6pvpeqOhLyzvNQe3ijvOndUkW3iuzbQCGN7K+YqkTuiLvjkkgKyDckpjYxrmL0+630HSbaPSeoLaeGON3NrqlqGftiaUyOLqBMu3bLsEeNJAyHa8e5A7QCqWdTO3cxf7yNhM6qQPRvawFFcHHGcNCKRyWEKHZV0kfpsa4hI9jIG17mtGv1KifOHrPSPWXorVrhNb9N+tbu2mt4ZhHa6FdXGm2cykpLHaa1Y2t5FdRyja0iTzMYzuKtgkVs3omo9Da1bR/h/VeirOCVImvYIpZASu3fb3EsEiOp4A7a5BGSTxUj8J34bygS4xewJYmt7mTocpjGNRqOc140jNMwjm93Y1zOe7lXsRqrxii99bNX0No1ToPqK01JXiQ/XWdz9GIUc9xe1b2zXRlZWdoSIHgE5VZVaJyY/YvekraVS41rS54TnDQXMLMxbOGDGbZtGQGwwJX8pJU7qqzi+3VzQdUfCtv81uLGrPLKOBVY/ay49kGwrkbEDIkJBbHEBjmq5x0liQRe1plYNUc6cjVPXfrOxs7fSvSfqfWG1KZbofhel6jPCumX1mjWC6g34ZsgWNzNJMUukmTd2bhI0Xc/i2EXRWh3Ejat1XolhEyqry3N/arJFJDOe80cQuDK7EAAKYiHC5jyQMe50z9HnUNle8eKb3dQUev20ocAuh3+Fbe106Ba5JYywhasEuQSK40uFUx2SU9eWB00804xsr0hxRkMddzv2b/ANmj1A0PqzSOuuvLSw6WtNIWG7senYXt7zVbm/SOaOE3DwPPDp9jArq+2SZr2ViYzawZM1Qr1X9Y+hv3V1Do7oh7vqC81i3az1TqC6imtdPghaVXmWxhnWOa7lkVdiy9pIUz3RLKypHWaNE4RE9+ERNfRweB+lac1zqtKaUppSmlKaUppSmlKaUppSmlK47U+ycJ+EVWp/RFTVMD9P0JH+qZx/8AgP8AuuO1v+VvP54Tn+uqFQTk8keCQpIx4wSM8fFMAeBiueE/+eeP6e3/AI1XA+cnPnJJz+v6/NBx4wP0AH/P+fYVyiInhE4T8JquAPAxSmlKaUov/tP9fOlKhWLqR3Uoz5bHy3YjMpxYN3fCxx2H0t3LriUVfJkxqmVYWEsEmTPPZtSDOeWrqY6ihyJjGVRZUEArOL/jmoQm4W40i6cpLOITbRSsnZRiIi7srF2kG1yUjGFLARlkAk2Ek9JOitRj0OXQvU7p62judN0ttVGvahp0N1Hql1DFNfQ29rBNDFbRWjG4tVjvL2UPPHbs18sNzK9ldraLfmn3YqsfmxMay6pk3SXwjNnY5cMrKudjMlK61g2dyWECBBmushTYsOCYqyTPgyRuRphqNPR03V49RjhdYLmJpRMCHglEcbwNskSSUqER94YKhO47G4BGKg3Xfppf9D3uqW8+saDfQ6edLeM22r6e97e22swG7sbqy0+K5lubm2Fm9tPcXMaCGMXUTAtGyyH/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGAgQHCAMB/8QANxAAAQMDAwIDBQcCBwAAAAAAAQACAwQFEQYSIRMxQVFhBxQiMpFCcYGhscHhFZIjU2JkorPR/8QAGgEBAAIDAQAAAAAAAAAAAAAAAAEEAwUGAv/EACoRAAICAgECBQIHAAAAAAAAAAABAhEDBBIFMRMVISKRQbFRUmFxgaHR/9oADAMBAAIRAxEAPwD1SiIgCIiAIixe9rG7nuDR5k4QGSLUqbnQ0wBqa2miB7dSVrc/UrCmvFtqnObTXCklc3uGTNcR9CvPON1YN5FriupCcCqgJ8uoP/VsAhwBBBB8QpTTAREUgIiIAiIgCIiAKI1Nfaew259VUBztvAa0ZLiewCl1X9ZWynrrVMatgkga3MjD5DxHqFizuaxyePvXpYOXye0urqriyS4Olo6RrstgpwdxHhud4/kFVTqWpud0qC+tnp6XqucJJ5DJIGZ7Anj0UvV6IgkcX2Srgweek53TP1HH1CiK3Sd7pZzM21TybYy1nRkaRuJ+Y7eTjyXKZFsZVWS/37r+jImkStRWWqeNrBUscQMF7y0u/VVe8uo6Wdjm1gilccR7T8Tj4Ywoy923UMkbxDQzwyn7T6dx2/dwoWy6Lub6+Opr5JXTNfkN6Tz28+OVVWtH1nKVfNsnlZf6CtfUObE26UzpmNAkYNzTn13fCfyyr1btXUVuidB7z7m/gFrDnafRvYfiqPRaTr31DImUz5tx3PkeDG1gHh255z4nupQez2YS5dPHCCcnaxuf7nn9lcwRyxkp4YNfb/fg8v8AU6rp/VLa5oDKhlS3OC7ZtI+/GRlWyCZszNzSPwK5jpWhtOmmvL658tTLhrmtk358uwAXSLfCIadu1jWAjIY0cNzyuj1JzlGp1fyeGbSIitgIiIAiIgC+FfD7xQ1EJGd8bm/UL7ooatUDzzcGOjndtJac+C2aKSrdAQ2qmbjsN2QpjV1vZFd6prPhaJDgffz+6jrfEWgjIP4rjXB48riZV6lYu92u1NK4e8yjnweq7dNW3KEgQ1cpOOcSfwrRqyJ20kNOR5crmV3dufgNzj5sg8pBy5026DJeg1peJ5yx9TLjbnmQ8rOW+V01SGGqfsPGNxwqVA6SI5Y055GcLdtLZpa5m47W5+0VaeK5crCO1+zihNZdad073PJcPmPqvQ47LjPshomPuMT3Zd02F/pnwXZluunw442/xPM+4REV88BERAEREAREQFH1jautXSSsHzgH8cKu0tA5hILc/guoVkDJuHgE+CjX21m4na36LV5un8sjmvqTZxjWNBKWExN2n/SVzCvtVQC8v6hB9SvROsbNLFZblVR4a6KnmlafItYSP0XnCaInS/8AUfeJOuWb9xmcXbtxb92c8qlLSlGZs9PQltwck6ppfJAz0E7ZHbi/GeASVMaWs8slcH7HYz3Kv9LY4aqhpZZmgyOhY5x9S0Eqes9qigLWhoH3eKzQ1sslVFCVRdF+9lVB7syV5HOwALoarWioBHTykDHYKyrbYcfhwUTG3YREWUgIiIAiIgCIiA+cvzBfFxzwvvL2C1XH4iFDdEor+upcaTvQ/wBjP/1uXkyalgGkhP1akEsxs2jpl+7PfH8+C9W324W6qpqykrHhkEglp373AFwHwvwO+Bnv2XH6vQGnzAKeG81ktM3BMOGYxuAHIbnJOOe/KrZE5SOi6Rv4dXFKOR1bT+DfpWllFSjOMQsH/EKYtgzIFEtrKWZ0UUR2k5a1hHPw/wABTVrGZAvHui2jUzamuR03SjcUL3eZH6KbUZpxu22M9SSpNXF6IpvuERFJAREQBERAEREBhMQGZPmtPacAk5Kzu7HPtlSGEh2wkEd+OVzmn1bXUtWeu8Tw9ixwx9D5rX7u9j1GvFun9S7q6c9iLePui6V1LSyB7paeF7ncuLmAkql3W20cc8ksdPG172hrsDAIByOOy+9Xrilcwh1PMx2PMEKu1mrKaVji+N7T5cKr5zqfn+5m8t2O/E1p4Io5S5kUbT5hoBUhZx8YVRn1A6SrJbGOj5ZUxa7lJO4bPgb4NCxrq2HJP2Jv+CwumZow93odwszdtspwPFuVuLXt7XMoKZrxhwjaCPXC2FvV2NK+4REUkBERAEREAREQGEzd8L24zlpH5Lhl2HTncxg4BIXdlzbUui6v3p81v/x4HEu2Zw9n17hajrGvLNiXGNm36RnhiyNTdWc2rHnnPgoOskAKtWoLXWUTg2aCZvGeYyFUa2J5zlriVxjweFk4yOsxyU43E1hL8StOlnulrYGAcueBjzVZo7Vc6yVraK31c7j26cLnfsurezzQF1irYK29MbSQRkOEG4OkefAHHDR+a3+hh5SXFFDezwx43ykjsEYIY0HuBhZIi6s4sIiIAiIgCIiAIiIAiIgBAPdYdGP/AC2f2hEUULMwABxwiIpAREQBaF0983QmjjbI3J6gMmw+mD/CIjPUXTurPy1vqpcvq6d8DuRgyBw7+CIihCbTk6VH/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAICAwADAQAAAAAAAAAAAAgJBgcDBQoBAgsE/8QANhAAAAYCAgEDAwICCQUAAAAAAQIDBAUGAAcIERITFCEJIjEVQQoWFyMkMlFhcYGxM0KRocH/xAAdAQEAAQUBAQEAAAAAAAAAAAAABQMEBgcICQEC/8QAOREAAgEEAgEDAwMABwcFAAAAAQIDAAQREgUhEwYiMQcUQSMyURUkM0JSYXEIJUNTgaHwkZKx0eH/2gAMAwEAAhEDEQA/APfxilMUpilMUpilMUpilMUpilMUpilMUpilMUpilMUpilMUpilMUr47AOg7+R/AfuP+gf5fv/h++KV/FJScdDsXcnLP2cZHMUDuXshIOkGLFo3TDs6zp46URbN0iB8nUWVIQofJjAHznwkAEkgAdkkgAD5ySeh1/NfQCxCqCSTgAAkkn4AA7JP8CuRJ8zXaJv0HTdZis3I7SeJLpKNVWqqQLpuk3BDmRUbKIiCxHBDmROiIKlOKf3YBBGQRjGc/jHzkH4Ix3kdV8IIJBBBGQQR2CPkEfOR/FY1Stg0LZUOpYddXao36ARk5OEVnKXZIa1Q6U1COzsJqIUk4J6/YklId8moylWBlwdR7tM7d2kiqUSB+I5Y5VLRukgDFSUYOAynDKSpIDKf3D5X81UlhlhYLNFJEzKrhZUaNijjKuAwBKsO1YDBHYJrL8qVTpilMUpilMUpilMUpilMUpilVL/U2+qzrHgTSn9YpqNZ3Py5nhrDfWvG5Gzni5qRTs79dH+bbctGs5ORgqdCRUfKTTxRBkvKyabVBswakQdnkmtjPfRRypaxyRG7kZVSN2IVNxkPKQPaoX3EEhiCD0DkSNtx1xNC148Uy2MYZpJ0QNkIcFYwSN2Le0H9obIJyNT5Wd5fxHnJbk8Xh4bXLB1xmkNbb4fveSzKnXVo9oe5Dwl0rzOpQ1XepviX2zakY1QbDLbLj3pq7W3D9wxI5skrGFjDDGXNxeu0SZ0eFnkkW1BmWVUcauy7jSBVDFvKdWzugkC+2ZsbCzxdMuJUliVIXusQNGWiZnSNmVle4L4RDGAy/BMTfMaOY/wBSraXJHakDzN2DuqantCMd0784ta20fpV3Wl5jXL7+UTztUnLNqPaVOldc751zsKhPSNNrNp0VH1vFeWp1ftFPBOCkstke7vZWeaOWMJ5VjWcC3k0XBE8ZUyRiGVCuEmQPMv8AaBB7RdtDZ8ZAsKTW80sq2s0stuxuIUZ2bNvM/wCnOl1E6EloD44GK6GVjuYKWD6sm99d8LrfwhLM7apwXrZDN4Cja8R0jRaVo+jx05Am1BUoiJM4s6a72Sbkq1tjrtcbPXC1aDprZJIUIddV7Xj4uS4t5bb7mU20jYKW0rxkJqQ8UajCxr2zEgkN7dANVJ/D8vb2nI298ttAbmBCytexCYPcbiRLi4zlZO1UoqqjBi5kOXbE8eMX1OJnY3Ba40/S+0priTt7jslU91Wmr6llTu2nJ6x0GWq9eh4xhVGVzqd3rGuJamvEl9zNqzOzkfVpit/zK1aK1B6jXIO3a0nhK28QuIyui28dpIEa4eMBIg6u0aMsaA7ReRNjh0H901pbxLuV7+48FzHcO4uLi9jLi0juHaa4ZWjWQiaSVj4ZvCwCuyOyyHyNfrXP4kaIaV+kt5jSUe/W2lAwUnqK5udoFMwu9hmJSQiZahO6zDUp9Yq/M1a3Qsxr2T/WjITlZdSNCs15iEKfPSN1byMV5dpZS3MkcAEMixSbzN5UkJOTLCsWQkeP1CjvIisrkSKGcwz8Xam7igW5lJlQyBUt8KVwCvhkklHkZwQVYqsUhSUI6OBGfQLxy5haX5MU6o2iny76rzNwTmfYa42K3bVTYpHNabsXVlSawCr103tMZCN5ONcrW6iyNpo79hIx0nEWV/Hv2jhW7s+RgvIw6nxlmKBJCoYsqqx8ZDFZk1YMssTMjLjBDZUWF/xl3x0zRTJsFVH8kYZkCSMyJ5AVDwPurI0M6RTI6lWQdZlLl/UfTFKYpTFKYpTFKYpWleQ+0XemdMbM2XHQytik6VRLfa46CQB2ZWYfV2vv5ZpGEBg3eP8A+3umyDVQWDN2+KiqoZk1cOioonjOXvGsbCe4jQySJGxRAMlmA6AHX57ODkDJX3Yq84+2S7vba3eQRJLNGjyHGFUsNjgkDOucbe3bG3tzX5UfOHl3fOU+9mXIDcLNpU9xXtzXlY2dq0JNVCrRVgr8wxiYydjoCRXWtI3elQ0LXWbVZaThXSLBqxJPN2TgjJNPFLXdllz93dSXE3lnvQIl8chTJhgj8YMUSuqqCZHCqNWkLDNbCkhS3WGKKa2t7ZIXjhs3mdneEMQZ7mcAK5lErMqhFXZmZUAwtQTvFpo43SNmj+vFVp+o+eTdQi1HZ454pAt38bGOK2aRs9keNHthkWSVpkK1KyktFxttfMUm8rYIL2YMJ+1gCGWEW4jZtQz7HPcSnDZBdmVDq0uAPcdB8OMavbhn8Mr3LzQq7FYwFyVEzg4IcIAZAdY2AJRVLYzg4xTbfa9hTNSYGgaTBTsEqhryiXC5BEV1lGontaMwDXcthexh2D72C8+aJZWm0okeRUVIsIOXehVY+NbsKzxRR+KPdxEMSDVncIuSBs5yWiDNnD5yp+MAkUo7iSczSrbx+UAQhSEVnKrl2VB0szIuDIgBD5fOXycedSl0tF32bd3+nYUz2D97N2ys0WtFj6xrlaKVbRMmzkaewWeosaKyeNyLTEXGCMW1O58CSMVFHEy0kwLxrGtywlkUsrRFY2ZxgLnEerBQFJjGu/ZJP4iIpESUyyWnlt0coI5S0gRGBMgzurqxOSkhLBOsdipKjF1XaOnNobbbUrSOpk2czRxh9XVyyX6LltZQcwdaGuG0da16zzh4e861tkw0JTtm1ict9vmaDbLPXXdfZQdfdnMxj0nuZJFt53JCbmD2LAJ9Ds8sDsxIaMjxy7f2hZWVVHZlHtIEja6gjZY3aPzbTGdbYSMBBHdqqIpEvcsTIcBVdHZ2BUSV4OLXWV3NZeNVNc6J3nQdrVtqnC0zYdkmNeQNjcJQjd8lsnTOwrlIQrrSPKGmwTSVGszCkk1ePJaLs1GXdz0WVnBzNveQxxItxboI0dSslvPHrbS/40ujkrFIxDGOcMdX7BC5DVre7kuFe2u3Bkt5torm3YS3cZOwAtVVS88TDAlt8FSoUkK6k1ZnRI2kv+Y3G+R5Pcpd66ps2l28rpvfvIasyEbSK/puXjkpuE46x1R21qpveqRCyexXCLydtVhm6jXqhbY13GR10UCyuJuSPZpLAsMtuYo2EcvkkmjkDNHCdhG6GNRIylyAkwVtVyCTkM1d4Lt2+5V5CJQY4LS4SQ/cTpo1wkiysIxIi9vA0gbKhkVAQo/RZ1Y+F1SYFqaeeWsYiMj4cttkFmDl/bCRrJBoWyvXMWkhFuXs56IyTxxGN28cs5cqKMm6DcyaRJ2wl8kGC5fxkRhyQS4VQA5IABLf3mAALZOBnvF5x+qzaiPcs5jUECIsSfHhiSAvwASSAME5rYmX1UaYpTFKYpTFKYpXTT0GwsMa4jJFEirdchiCByAoAeZDJnAxDfB0zpnOmqmb7TpmMUevgQpTQpPGUcdHGD/B+MjPR/0PRr9I7IwZSQQQfkj4/wBK8kn1B/pGcK+Vm1JR41u9m47bluO5LNXrVNO01Zg2yJEkE1nHsRUQsb2RrjGLcnSbWLqKLDOpB9HvYx42VBq5RzWsE9txzX6QX01kLbzs9pfEtZCUXWpkaZf1I4ZHJCASFQrhjH7es6ae8uYrPzwQ3oMMCQyQKv3CRNCB4yhABlQKR8Fiw6bDd0y3f+HE35Zldjf0Z7V0pLmqQIIa/kp+dnpC3bBcrEdtLEps6dQFWCrb58Vdu+VRrcT6Sq7EsSZNM6qr5SUufUc1pBZzz8el7LcKq3k/FXUUttHGqkEQi6mgmui51OCEZhkl3ACVZRcVHNcTQiaS2jjLPBFf2zRyszsuNxDFKkBGScj2Kuv8ljWDcvpWc7GGwNmcb5DVNxv5IOKkLmvfo9qvGa8s8/VqkzWbsoGYcODsnSaRE3FejHrv2Nisj9giR4zTO3bJtp6K+tZePtOXltb+3gYRoiSW5MnklkCJFPFCZ8InZLq5SNC0kjYGKiJIbuG5msknt5DuWLRzYQKqku8busZLEAMw1G7YQD4rGaL9Mjl9sg1ihIfi5tuQrOr42Wv7/aIxEPWJ6RNAVsYxrSYqFlpeNC2M5STaRaFbqYMSW1QqUiBTewknrBKsblFlRZTLHE6iXS4hlUEqArvA4UoEAYaAuCT8H5qnIoKZjZWmVioaFgSwzkedT2WbBLHXbJ7IAwckYfS/5bV62M6EfjfbnM7aYVEK1Y7RKDF1msQMhIAc/uZRaXThFlpFoRdrPQziNUfwSLg7RsUjlJvKDbS39nc2015DFdS2do7qGgt7lJ2eMayDLmKTVsnUAASDBBcMCbm3W5t3SF3h+4nCOyTPHJAIyd0IQCVS6EZYNtoTghCDVu2o/o887OSPH9/r/dd51xpCu0G2JTmtKzYmlb2BIgYjF22Xj5SdaRYWdpVIgzyVfRrZ7a5cXCswdqm3/TI2PAsDPzLWk4ht7OFuPk1Mn39+IljywH6MMouJJCqsz6T64wEB95dJwQrdwi5llki5GIkLJZWIQPhVx5XiaBFYsmrSRqWIOWGUCm136bH05+PetLYtTOQu4IXl9yPo1JR1RcKhAqzk7r6K05c56DeUep7Mrc4d1E2penTDRaYpzuxrFkK1GljwiopqjXYFZvarPYJNaRLd/dQ3XnhsbWyiLQG3cpHLG9wMgwQuzAKromzFdGKZFbkbjkbuOe4liMLoYpr+5uZFEz36q0iTIhAKzzwxpu+ru6orM4EjA+uiJi20QzSZtSETTTKUgFTTIikUqZfAhEkSdESSIUOkyF+AD8iIiI5sKGFIEVEAAUBehgYAAAA7wAB0M/6knusCdi7Fickknvs9/wAn8/8AnxXZ5Wr80xSmKUxSmKUxSg/gev8ADFKp85oaSkV7o72bC1w99sGt0bBs3VdKdTa0EgntVKLk3EcVs8S/s6kbc0JSSr8y0km7xoi+QiZBMiS7cVQ0H68kayv+Rt2kEMV+YzJ5MMPtLjBuDDkgEHZm1BB8sIVSNmxtL0nHHeW9mT7ZLdnUSDOPInUBlIOV8RRNSP8AhSvkHXFVcbOmuR+vdl8fNj8fOJsAwX384bSXKtFFY8Xeq8u3ZRAqRMpYWUqwrbNxEsVpF4hOumzxOdlIsseKXrOhUV1fZHhyeX43kfU15arbLLNwc9pcT29ozZyTKgVgkkgMY8B1DFpXG5Umth3UPKvBY8lbcfaXMkbw23I21ykE85hOwQwmQhpYUYSbSjZolEe4CsoEWbdH86i82dtTtnsMdpPQEEynlYPestWKrJ1qGqDlkgFaftXE8IRdguEnLHQRlkJpI76OAHzQyrJqRIXWe8T6n4pPS1nYwXnIc9yTgCTjTfzrNJdg+4Oyqwit41wyJGMudcYOcYZyfB8k/Mz3bwW/GWgbIuFt42gSInAKpt7pCemdyqrnoYwa2dNwzw3G5Yu9uclZBWavYyEDvzWcNrqisVmjoSIVmuqEbMH0M+duSe6UkPXVKom4UKcj1FJmCo49c+rvV1lzv+4ODvsR8dtNxF9LcXUkgILSzxyoTJEFAxECNWC4YbMy1LWXA+n7njy3K8pbsz3aql/bRRwpHn2iJ42GJAc+8j3Ak6E4GNRzGzOQTblBpfj1X69Y7Xp2lU4ZLZPIO315mDo0W7hXxhm6/cWEU1jGtgQFJJIwNjnVdu3/AKZGqTdss8PHt6luX9F836j5H1FLFzfIXoXjPT1lNFFmWO5SKPjrm2w0si3TBizvqI4slWyxSpBuBjX1JYcPx/Co3HWtqxvOVuI5XjEUsLP93DP0itbrqqKm28vbAa5OkaTxwjOUml7NCaP5j7wucQ73ueZ2LtC1OLXMStiYVlVwuxo1VZvpeKatYlgZ8k7SetknEfNPwMu8QUbGI3QoX/r7nOA5+CX1J6e4+2nn4GO047h7O8hlisJrwr5ry8UCXySPrp4wRJAgCjBLM15aeibHluFc8Pyl1LCvKPNdXtzbSK95HanAt7RgYmESlv3AeORiW7I69D304tKumc6rs2Z1g21XbL6/dPL1DuphGdtE+zqhmkDrx/YlmJlImLeK16LUmpeMilAbEkHqBFAWXFU5M5+m8i3nKWlnHeJf23GoI7d0QRqsWzXM6wxgApCLhmCu5LuiKBgHAwz1xH9paTM0Zhlu2EskecASMBEA79F5ViVM4XQFmxkju87Ojq09TFKYpTFKYpTFKYpTFKiHygfNoFFlPPEFlGSUaJHpkG6jpRJFF4YBXMgj/XHTRK5E6oo9qJpgJwKcCmLnO/1wAgawu2U+N7OSF2VHcqYp2Idlj9+iCb3MpOoySCM52t9M45LyeexidFmedTCssiRI7NF/ZB5D4xJIY8Ir6hz7cgkGohJykS/TTeN1FFGqyYKEXQP7pExB+Sm7J4KFD7uykFMRKICAh2AjnMUlzCjhpEkCP+VczxsBlQwZMMBkg4KHGMNhe63MLW5jLREIJY2KlZB9vICAPZhsqxAHZ3AbOQSawy4VmhX+EsNJu0dC2itWCMXjJivTqHqsnseuBQVSWQWTIJTAcpVCLEOCiaxE1kTkOmQxZ2w5Eca0NzYSiKVMsk3aasMbAF1TGOwdjqfg9AmqdxbTXEPimgLIzYlUayCTGwAYK79FQDhewDnHfcNLdwj4ivtdRuqXOqaspr+Escpb46tjYZpFklYJdEjWQkXBkpNJV6dw3KCIovjrooFOr6BEvVUE1S++oHOQ3UnIxcgiX0kAtmuQ9vlYAwZUCn2gAjONf3e4N3k3HH+n7F4ltX4wS23kWXwm0Zk8g29+CC6nDMvTLuvtfbC4z1dOnwUQaIkHMGjW0YsIcsR5OHDX9KTYhHlZik2SWVMl7EPbgPmChkxEPIBHsdTPdXUl796bqNZTL59xIT+oT5BKBGrgMXJKkDIYkg4+NkW9nNcRJa2lhO5IWMfpxIuBgBP1XVQuMKUbIA9p+DWpqXZtTEfRVH1vUVm0NCKKe1YV2AZVKqxIlOKhjplX9NVcxzmMYxkY1Qxjfcop5HAct5+Vl5K8MlzLfX9yX2e5YFVVx+WluXLs2uFGkLEAD46rLpPS/KcBwklzczcTxULwrHHaiT7u8lVh+xLezRYbdFLHcSXKdtkA4NXbcRY0BYuJQ6RUjCyMQpCHOoUgrKIgAGWU+9UwlKPRxBMvyYSJlARDOyv9n20JhvrtkwRF41P7yAzIMF27Zj+cBVA2Oo7ri/6t3IN1BbqxYeQuWZQpOFbAVV6Ve84yx69zEgVN3Om60zTFKYpTFKYpTFKYpTFKjTyaYkc1BFY4G8ALINFRIAd9LoJKJB2ICHQHSMId/aBhARH46zTX1ktBPxFhIVYhZriI6kDKvHHIAcggdxNgkfuwfnFZ/wDT2fw8s+CNv0JFDAkZRyhOoI/EgBI7AOPgkivSsNUkI9VFJICFIqoX7SlEhTG7E/XXkUBHxOfsvyIgJgEfgc465GLxjCR4TyOu3jDhT2zkEZCnXdww7yC46yV6JnnaSdZGcsxVWBLFWIUKq57DEZKKAesYBz+ejlkzQacvNquGbBozav3q8g+UaJoM2rFsgcHD944KChGXtmzty6EVfBMxgUWAhEzHGTtrhJbVYnLa6p7Qrqh7JYL3qCraagA7DZE6AJoQWd3d3kFrZQPc3V3OlvbQRZmuJp5nWGCGONVLvJM7+NVXJeRkHZOKgnZeaPHRwh79ttmIeR6RBeoSTaPnFo4EAbOQUcDJJQJmC5Ux9dwm49f2hkESqkMKJVFk7W94W6m7itJHR0IY/byasucsFYjUIVBOudgwyT0BW/IP9n76z2khiufRV/b3EboptJuR4RL2OVygSKSybkluhcM8qIsXi3EjpGQHbWtU7I3DByDeOUYzLF0zmGbV/HumzlFwg+YyCfumblusgf0joqtVkQQMmJ/UL6ZhETgJRxuaCxtnMM8xjkJ0SMr2HVQj7gjOdh1qe8kYHVXfp701ztq0yXPFzw3VlJPDeRXaGKS3nglKSQSRnDxSQtssiyAFGHuwPnfGjakKUWjKnSOg6kBSWKCpelStzD2mBym+QUUKIKHKPYgJuhAAARCxFuquqRgBsgt0oGM/GSBnPx8k4z+0DIxn1lzT3Fw9t5NobfZeu1MihgdSMjVMaqQASQWH7hm+fi1H+2pazgS9CqZAgfaBR6AFDD30H+Rfx0HQAIAHYBncH0KtDF6duLgrgzSRAbD3YBkY9kD5JGAOlwMdEVxH9S7jy82sf+CMn5yM+0dfkH5BJJJ/PealBm861zTFKYpTFKYpTFKYpTFK05vJiV7R1gMH/SeoAYRDsCkcJOGwiP7deShBHv46Afx8DmtfqpCJPS7S6k/b31u5x86yLLAx/kY3U/IGM5rKvR0xi5pB/wAyGQAZxlkaORR/OcIw6qpCvKWuCs0tDzsC6bx53i4sJFExXDA6IKeRBFcDqCQyifSnpKCU/wB32l7KUmcITT3D391Z3Nm9vH5XMFxn+rSKmrACQlsErqQjFXJ6XJ1U9b3kPGXHFWV7YcjFPcLDELq1ZTHdK5UqT4iAGCtlTIoK4X3f4q4d7NiyGnNsMiFT7ea0vbcoGKUSGMtVZgoGUIJfEfuU6EDh8FAC99AGS3HN+qqAL0UyNVUEgk+R1XILe4gHB1AVR2AKk/p1N9r6/wDQt2S39X9YemZWOSSix83YZWNj2F1XPXf7sjs15ClNsClxld1BSLlz2IK7NN2soUkkKDlFCeZpM58r5ASN2ruMr8pJxbRmZA4OIuJe+T0jVwZFTZ7XAax8OriQRnVu+13UK4csFBWNigUAHVHG2uyn2c5r0Oq/WpfUMd3xw4k8tx8lxYMbTyxzScZcSXXGm0lBeWC75Kzs7y4uNx472+tv6uZY1YXicfK7S32h9FPZurwkjJttYUo5XjqPRO6TOMM0UKIqgUvkJfIolE3fZgAwiA/nn7mAn9J3LEEsk8xQlVcowkz7MgnPy3fR/kYJrzX+q3OcvB9S/qRFacjdW9rN6x9QhoYrhlhcf0hOhGASq5xnr4AOAam/RHiKrhBFuiBUuwIUoF8SAAdB49fHZuvEfwPz89d9dLCVHmTOzs51DOAAO/7xIGcbAnIx+QfgVojllkMbFiAT72IIOSMt18jB7/OQCBn5q77QTD2Ovo/7PAVzgcQ6HofFFIOwN+/YiP8Aoby6z0G+ktr9t6QtCV1aSRmIx/CKM5Oc52J2B7z/AAcVx362mM3qC7OdguBnro5bIOPgjAGMDHXz81uzNn1iVMUpilMUpilMUpilMUrANoNvc0aeAA7Mi3RclD9xFB0goIB/mJQN0I9gA/kOh7DDPqBb/cekeaXXYpbpMq/yYZ4nOCMnOucYGTjH5qc9NyeLm+PbrBlZDn4xJG69j4PZFVZ2Vb0phTo5A76D+rOXyN4+QCIpkMImOAm6EQ6ECl6II+I5wHynt5AjCsmVR2Qr7wA2dkV+5MkbEagqgC7AHPUPGHazHZyewrZwA2mNWZcBcDI7OWbd8VrS4O28/AWupIvGykvK1iZj0WJ3SHrdy0S9ZN11GwGF0VqKqoFM48PAoB5/3e+7q1KoNyGK+09KuCMqQdSCxAbpnViPIQD+6pvhLscZzvC8lIhWLj+X42/kZFYt47G/trlwmPYZDFGxCY2YHUHI68sp9Lcm09ITOpW2t9lSEkcZOGbKxbZqtUkWyklIISsGpLe+Bkum+etUHK0giuWNaOko0glJ7SWObO5Oes7eyMMtwYy6EhXVyiox2eMDUnY/uOCw2CgJ+/b1j5D6ofRflvqRa+vIvWvpC2sVezvLlbi4kXm5Z4rSA2t+tn9v9xC9rFJJbR2ksX30kLXoDZlskW4Sg1p9CajodIVftW83AUevVmTVYuk3aSMxCwrOMkkG6qQ/1vs3zddFX5ASnT6P499Bpe4uYByMt08bMkkzTqrqRsrMWQkY21cEHOMBcYJAxXnh635WD1D6t9U8vxzSSWPKeoeX5K1eVDHI1rd8hPPA8ik5R2ikRtWywY6uMg1JjjtA2KKYxETaZkbLJs3J2x55RqkxcPmhnZztRet0AMgDpBucjZddEUiuTN/cmIBznA1xavb3PKiS1QxxzPFumTiGRiBIoDA4jJJYAkYOcMfisB52cfbzMsZt18eFhDGRfYgB0Y6nBKlsEMQG1zqM16F9ZNAZ0iBSApS9tjG+3voQ9U5CiHfQ+JikKJfgOwEBApe+s9HfQ9v9t6X4mMADMBY6jpsuwVhnBwVUYyqkjsqK4p5+XzcxfSHOTLg7YyDqCQcEgkEkEgnvPZrPcy2oemKUxSmKUxSmKUxSmKVj9sbA8rFgbCAD6sRIAAG/AmK2UOUB+Q/Jih+4dj+R6yG9RW4uuC5iAjPl4y+UAjOT9u7AYJA+VH5H+oq942Tw8hYyZxpd25z/AAPKoP8A81RzcZabcbtk4ZAp0oCv1eKUcLAmoQFZaXXcuQIkqBiFEUmiaRViESA5BET+oJBIAeefKFYpryMgIIWjRX7VnaRMkBgFPQIDlVQkk5LJrXXvH28H9BWF0XD3d3d3KiMNGxS2txEmzodyC8pcoWdlPQwHDNWKWHXMDYJB5KHfT8LIvRYOH7quzBosz9xFMv02LO+KRNX1yNmYi3M0MYjZQhUlVUVHKaSoRlpdOoEeyjQEgFYzgH4ALZIDNlmXoxn9igt3csWVRlQ4ZtQCrnUMAzlTkd9ABu9j0SFGBFJ9pCPYzL9SBv8AdEodj/MsXMxr9269+M5Y2qTl1Lx0iYqTVV6kK6L734NHaZnK78Dp+uuItK/J8vIIRFJFbO8ZhaOQIAqqrbCJkIJf5IYqUx0e8EVK2dvIWinkDfrxKyDyh28UYaEMArFou4yqo43UAAAKcnC4PS9NrNqLaY48+5l05KRkUk3E46GPTfzSTpu+ckiUCJNTGcJvFUPUOUwh22Hoy6KapcUu+YvLq3+1Ph8WsEXthUSskZUopc5kIDKBlSMsQACTrWTRRKMsRjO0hZslfypPyEVihOVGAVBJyFBqeelm6jychEx78SKokTKJQDtI7g51AFQgAoUfuMcDqFOfvxHzAgB1KelozPyfHoQ/U0SRLj/htMzzKzxgyK2WYrKyu64UghSCMT9VOkVjdsCPdHI8hOf3rEoQhGOjdqAVVlUd5Uk6tfJWmwNK/DNgDr0o1mA/HX3CgQxh/wBzGEf989NOEg+34jjYegY7G1UgDHfiUnr8ZLZrie+k817dS/47iZs/PW7Ad956A/Jru8lKtaYpTFKYpTFKYpTFKYpXA5SBdsugP4WRVREB/A+qQxOhH9gHy/OUp4xNDLERkSRyRkH8h0ZD/l/e7+evxX6RtHRv8LK3WM+0g/nr8fnqqZ79BOIW2Wh6uv6hZJ+2ORFQhiqMvZNEmKqAm8+1UxWRVWSE4dpischvM33B5v8ArJGtL65t5Ccx30m0chYeMqPGyL7w2FZHKlwzBmce49jrf05Mt1ZWJVAvjtShdTkSl5WnVyNSFJV0WQKcYRGGB0dcJuezn66HyKYoh0BgMI9eQ/uJTCAF6MXowB4iAgI95jFtI+c4Uk5wCOsnsgA9oWH8AEdEHYZGTSxe1QfkEEkEjABwM4+Qp+diRnOMjqtdXBXopxKIl6AQ+AAphA3fQ9dj4m76ASl7MIGHoQ+7KV8SRksSANfjUhT0vztgA/IXJPfyCTV9x4HtAAxnAwSQSB7hkAbDGT7sAYAH4qO84/kGbOQcxLNOQkU25lGLFRb0wcqlOAlR9UB6RMoKY9HN49B12AABRGDiEbShZmKRNkbA9rk4Bx2AdlDAnA7x0Dk5XAiM0XkkMMfkHlkCliqAEliCMuMOFwpJY/I6IEyOKpXs9J1pZ3GOIh+8RYKOIp16LpZk8XA4OWgu25jJmUbKdFTVADovElDGIZJQniOeegLQzeo7K1iff9e3VHMYYSCSRlJV1JZHXKAqQyy5dQVaMba7+oU0Vpx18UkWaNDKElRmjDogXxyeJ1zpIu2RlXiYL0wfNXzIJAggiiH4SSTSD/RMhSB/xnpbEgjjSMYAREQY/hFC/wCfxjFcWs2zM3+Ji3/qc1y5Ur80xSmKUxSmKUxSmKUxSmfD8f6EH/oCCaVUzyGArS2WFNbx8kZN8Jk/IQEQ9yor2Hj5FOCnl5eJikKIB0BiCbrPPX6tBYfVXMxy4R4+SvMAbMSDMzjIQnKvurE/p5UDDK3trqj6e/q8NYNHkB7aHJGP+WE/hSugDd+7BJOCATUW0pJsCpwMuoQR6+FEzD+B/wAUBVKYOgKPl4h+AECiIiOa1tmXv3jPXbk9BTnorsrLkKxIPz+Oya2DLG+B+mMd/t1bBIAxhwrLhWPXyMkf3ajvNViUjrrN2U2xZZzW5MiajSoum5lGsY68RBcW7z2xnJmpzdqpoD0KRzGL5mTAAG5v71TatCyI8p10kIAKKBg6toGyGwQMZGT8ZqXtGhkt7aFeOSK4hZlmu43Ia5UnKeWJpPHuAdWbOSAOskmuhJIRnuieo9VWHyKBSotVD/b30UpTPBRTKBQHroCnAv8AeAvfYDichOQSwQjrbJf5OMKGCrrglck7fJwCMicSN9SUjAC5zlwgyQC5JQO7baj51z8E/irJ+G7Esjb4xyDUpenCSvkoAKLm8AE3qGAUkyoAVMwiKaZS/aJQN5CIDm8/odZm79XWDtGHInics+M4iLNsqiNQgEeT02SpwQSQRpH6szfb8NOhkPSyLqoIQGTGV2Dt5MsAMtkZAxjDCric9Ba5RpilMUpilMUpilMUpilMUpilQs5KcfrTeFlrRQTMXsmdDuRrsgoRr71VNMqZXEc9UMmgmuqQhAVRXWblE5AORUwqemXmf6w/R7mvUt+/qP0s9rc3ckYF/wAJeSC2NzKiLGLrjrxv0op5ESNJbe4McbFS6SlmKDcP079f8bwca8VziXEVqJD9tyVqplMCMxYxXVv20kSuztG0auy7alQBsak9gx1+1yuulcda3yCIl0c7oYdw6jTin2AqFegii1VAPP7FSrqAJTCBTCXsQ5T5L036l4F2h5j07zvFsGBb7nj53tmIOu63cCvbyj3NrIrkanIGD30bxfJ+n+ZQPxfqDhL/AGBAQXaW9yoOCVa3lbyRnoErhdWGD3iomXLdlfIKqJwnQOPZVEkon1VQII9+n4mciAgIlDofIDfH9785BSBpnKhs7ZyNJNsDvCq0ZYAY6O2SB0fmstteNePEmbbAIKsbqMKSOtiQBjoknAI/Otcms47ZO0JVFHXemtqXRVc4AV23rbyMhUSG+BUczC6Dpki3EB8THO4SKUvQioUwlNknxvov1TzjqnEcBzF+z4Ae04658agt8tdTpHbxrg4LswABJJBzVDlPUHpzhY2blPUPB8eqDtJLyKe4Zlx1HawkSvIvRVADknGPmvQHw/493jWkcFi2QlGQ845blKzq0S5B+EWChBBQ8lJEUWScO+h6KiiuummJjD5p9elnYH0V+k3M+kJZeb9Sfb2t7JH47TiraVbl7YOpEk17doPC8hBwkFuZEjJLNKWGtcnfVD17xfqWROP4MXM9nC+03IXaeH7kqcqltbEBoolI/tJAsj4GVIwanXnR3xWnKYpTFKYpTFKYpTFKYpTFKYpTFK+viUQ6EPjrrx/7eh/bx/H/AKz5gd/5gj/Lv56+P+1P/vP/AFFdZ+hQore4GIixceXn6/6ez9bz778vV9Dz8u/ny8u+/wB8ofa2+2/gh2znbwxbf+7Tb/vmqvnn1080uuMa+R9cfGMZxjH+VdmBCgAAAfAB0BfwXoP28Q+3/wABlfA//D8f5dfFUv8Az4/mvtn2lMUpilB/+h/z84pUK0uSO1INe2t7boi5PlWM3PJVw1PhZt3HKQUe5ctol1ISDtBy5fryZQYvjqxcS3FJm4eEJFKumKCUni/9OchCbhbjiLpyks4hNtFKyeFGIiLuysXaQauSkYwpYCMsgEnQkn0k9FcjHwcvBfU709bR3PG8W3KjnuQ46G6j5S6himvobe1gmhitorRjcWqx3l7KHnjt2a+WG5ley21qLfMPtiKr71pWrdEuZoJ5JYr6uTBIyLfVlyEdKsZOZVZIMGL00kk9as2KyouVjsXKZgKsmKYSPG8vHyMcLrBcxNKJgQ8EojjeBtJEklKhEfcMFQnY6N0CMVg3rv6aX/oe95S3n5jgb6Hjzxbxm25fj3vb225mA3djdWXHxXMtzc2ws3tp7i5jQQxi6iYFo2WQ/wD/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAIDAQEAAwAAAAAAAAAAAAcIBQkKBgIBAwT/xAAxEAACAgEEAQMDAwMDBQAAAAABAgMEBQAGERIHEyExCBQiCUFCFSNRMmGhFiZxcoH/xAAdAQEAAgIDAQEAAAAAAAAAAAAABAUGCAIDBwEJ/8QAOBEAAgEDBAAFAgQFAwMFAAAAAQIDAAQRBRIhMQYTIkFRB2EUMnGBI0KRocFSsfAVgvEXJDPR4f/aAAwDAQACEQMRAD8A7+NKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pWMyeZxWGrtcy+RoYuoh4a1krlahWU/PDWLcsMXPHvwGJ9x7fPEee5htxvneOGPIHmSyxRLk/eR0HeB7ZPAzSok3T5+2DtyENUlym6bMkbvBDtnHS3asnVSy+pm7P2mBrK/BAknySr++qy91+xs03Dzbk7Wb/2yBowqjdl53aOCNSAfW8gRedzD36zKg7PwMYPv17Vk9n+bNibv29e3Cl2xt1MRJHBm8XumGPE5bDzzR+tXS3XE1iGeO5X4s0rOOsXa1uBg0MrMGRftjr1he2z3W6S1WJgk8d4ohlgZhuTzF3MpWRfVG6O6OpBBwa5blxkMMYz8f7jP9v0zWQ2v5h8bb0y1jBba3bispl6qu8uPjleK0Yo2VXliinjiaWNGZQzIDxyDxx767bLWtL1CZoLS9hmmUFjErevaM8gHscHo/tXxZEfIVs444Bxn4Bxg498E4qS9Wtc6aUppSmlKaUppSmlKaUppSmlK8BvHybsjYyRruXcFShandY6uNQvayl2Z+RFXrUKizWWlncCOPsiL2YEuq++q+/1Ky0+NXu7iOHcT5aMw82YgHMdvFnfcSN+Xy4gzLuDHbgVxZ0Xhjg4yBgknnHt1+9an/JG6McfIdffPkbyhQyP3Fm5DBtmWjba5jQYZ5sVRxuEK3sbG+Hkkpfeqs6fcJ633c0clhwfD9bu44dWXVtU1wSRyCYLYrBKWiQI72sMVqRNHm3fyvPldyp2yJMRI4SouJZC7orEoN7KM/kBIzngFTg5HPxj3qYqvnnCVGjXIYDA4vBPjcRPDlGzsd9rst2KI5GrRwEVKfMV2pztKsNey3U8JDNJHykr5bD4ysQIzJbWttaNDbNHcC4SRmMyIZlS1CvNE0eAEjkIwHG5iCSXmR7FYNuYglkKj08k+2ckN3uIO094FQbJlfL3m2Tc8O8dgbCq+IYMpfr7atR7otHPZijhcpYgrQvTw9eLJV44GgjkW3NPSpzTrMeRSZYjR/itV8TJcLe6bYHR/PlECLO3n+XBK4gjGwrKQrhlZ3EZbHBK4YzGMCKjxzvJMYwWQoihCykkA5OWz1lTweBniszsLa+0vEubO8dveP8AE4nK1Kc9BstFlblZ6Vew8T2JXiyNvMYyWykkcfSb+1IsJaFJekzhp+l21nos34y20qK3lWLZ58br5kaMwV1KyPLCxzyGbGB3k8VGE8hwJQWYAAFsFs+2doAx8YAPtzxmbvJf1r2a2x48l4ww+cydipkLEWVzsdChPUx1fFIsGSpy0ssizSzw3LdICWGpIlim6TwWBG0kqz/EfjiaysFm0m2mvJFIaa4jijeOCCPAl3xtgySGVo4/4eVw+UIIapBDHaNyRkgEFjw2SeB39s/GR85q53g3yLZ8reLNl76v42TD5LcODp5G9i5ozDNUlnVgrvXdmkrJcjRbkMEhYxxTKgkkVVds38Pai+raNp+oyRPA95axTmJ1Ksm5eCVPKl/z7f5QcHBGKDPRxkcEjo++f71LWrqvtNKU0pTSlNKU0pTSlfEql43VWKMUYK4HJRipAcD/ACpPYf7jXw9HHxXw59vv+3B/zitQHmDxPuWLcsVLdMcN3IV8nXz9R7NiTI0svHXuvLBPOJJY5LVeeVGW1BIySK4CSRo6At5L4s8OXVzrI1COVLouYpVsbuTYirCQpSEk+WYZD63VgG3YDbj3CQSxOXYAtyACww6k+r1Ed85x+o4qr+d8F753Jvi7vve0+RumeWFcdiNvYZ6+Kx+PjcQ1qUDv6pq1K8apJasQVIXllkmkCliHPnN/4Wv73U5NQ1eO5YyOu22tbby7ZIg5/hxuqsoj2jLMoAJLDOWBE9r0LbiCGBo8lt7MwP5hywwOCesdYHNe1zW1sveqJjMRkLNF6NcVKqWrUuNPTu8jogkIEEc87s7qqsCoCEFVHGR/gV2rEhSERKUiAPkY4G4CJsOiuRnYV9IIA9IGYEcgDksQM9gj4AGT98cjv7dcZjD+GJlxqnNZ29ajNMDILNnVsiduwkkrIsckYSBhxHzypWP8VA5Op1voERQm4udwK7nRbhgWUD1J6XLABQVGCT8gA1zkZGPBAy2fSAOuAR8noc8jrBHFSfhMFjsdT2L46qrDWyO76t+9XxWPmjjip4ipJMat9XnJSByxymct3LcsY4IZXdvt0M5LWOH/AKZpltGFa9V5BBGQVW2UlInbeFj3AtvZpCHcruVWxXwoSQUJdgVznpUA7OCO+TnBBx7V/VLtbJQ7jmwm0b2abB4S7lqcGeyEdG9BlkmuSyRZMy5viNK9NC8NJIErdrKLbjlEIiL8TpV6t+0djLcrZ2kk6LdTBXVg0z7ZSLrCBFjJjijKr6tsoICKTxUCN3JUuAcKxJO0fzYBHBx3zz8E1ffwXty7j8PRuTZe1lI69OxQsZG3ehyN/OX2mRr2Sy1+sqVrFszxqqQVo1rUFQwxtyzIvpujReVZRIs5uAow87SLNJPLxvllkUlPMY53qmADxjjJlgEsXJxuLEKpygBPpxjH8vf3PyM1YXVvXOmlKaUppSmlKaUppSmlKpx9UNKNMhtTItwHlo5amrMnIJgsVrCKz/t7WW6jnn5IHsePJvqW8lu2lXETmPf+JhbBOGZWjdN2OgBv9XAycEkkVT6ozIYXRyp9QI52n9SOPnHP6+1VPffOd2+rTUrtiAKSFUWHKIqj3KqxdQO3HI449/fn315WfHGr6er4uZCpG3Z5hZYwTjcEZsAfbHucA1VpqUsTEsN/xhhjB4OOPj++ajvdfmrN3I5Y52e1LGv9syxVmZzye8ZLryHUAlFJ4P8Ann4qtQ+q1/JGUBG6NQquYo33HGeicF1U5CnJAAb7CUmohwU2svHDYz3yehkY4PXPHzVTd5efM/jbhirV1Xh+Qs8UKo5kHHZygVivuGIJJ4/cEaxr/wBU9VWdhHHG8ZbKeZBGDtBxyAcjn2J44Hua+G75xtDAL+bHZz37YOMHOP3zxUUZ36p/KVUejUuVqYYhEkhrxN3hT8FUEBmSNOAFVujDqOnJA1av9S/EVxGVWdIgwBCogC8DG1kDlSPjK+k4xjmpkdxgkAclQMg4+44/rjj36548JZ86+U9wuseV3vmYKZ5lkjpyNWRR/EhkI9ieOSQzGMMB78HWPXnibXb8MLvVL10BBJM0iqR1ztb1cDHrJwAOADiuTOSTx32c+/7kHPPOAc/cV0w/RnhLOB+mTxDVuy2bF29tk5+3YuSGaxPPuTJX84ZHkZmZg0d6P0yST6QT4+BuB9PbZ7XwboKSlmlls/xUjOcszXcslwCx/wBQSRQR7YweasYQViRSxbC9nvkk/brOKs9rM67KaUppSmlKaUppSmlKaUqv31G0RNsaG8sKST0MzUCMyK5WG7HLXmVSeSveRYByODyF4IHOsE+oESHw/NM0YleCeIJuAwvnsIsk53BSzbTgg5wRxkiu1Rc22QOVcDnHuSM9HA64HfvWuPPV6klKZmDxcRk8qnqKCOWBJI9QFuOevRuAOCP31rXqUFtJBIQzJ6SpyqOAMjJYEknP5VwVZRz3kjEpGAAwvHOCD9+fnHv7Y44wO61bonx+PMg+5qv1do168xyujRnhusso6mMq4f5IdovY+ohTzXUIUhdtmxxE7qp27S6vlQ2WkJBiIAzjcwOMsMY5xS4BAX9ieRyRzxx3nrj5qi3knP1Yr1oyWoF9N2VWlljLKE/0seGIIYhQGUKjEMFb296eOCSSQeWrNyRwhxyeSTtAGT7kj/FTkGcnvjs84J9iM898/cEfeogXOYzKzxNNkoEjDqkghYzTkcqrLHFDFICehYqJmAB+WVSSl7BZyRcv6eMsGYIOs5y2eTnJwG6JAxUxMJhgCSexggge5Ge+ewMj96l7x3JDdzuLoVMe1r7y7WqI9+AVi8dixHErCHmSeR059NBLHEsbFgqOjK2rixiIvbWH+DOLiSBVRWEigPKqMCeF3NnBBztxkAVIBY49J565XGPnv3x8Z6FdgG2sVXwW38JhKkUcFbD4jGYuCGJBHFDDQo16sccaL7IiLEAqj2Gt87SFbe3ht0AVYIYolUDChY41UED2Bx1wesgGrdRhQMYwBx+3/P3rOak1yppSmlKaUppSmlKaUppSoq821vufF+7CApepShvx9iQvajcrWGLce/XojhvngHng/GsX8ZxiTwzq5Iz5VuJwPk28qS4HwSFIBHPPdQ9QUvZzgd7QRwD0Rk8/bPPY7HNaiM5npmqI9hYYLvpxvZgryvLEkxIaYRzNGGljiMZKuY1Zk6l19iNaeatd7VuEVwfKDJheNxViobA5PIJ6wejmsOdtxz1kdD2HIGf1GP8A6wRVUN5bhxeJGTmtZbGUZXxm4s1AtqxAJ46O36dSxkrMiNA9qejVoRpPeAeQRvMs1gIoTviEkpvVXbF53rjgLQowK3VwWECygKEjWVwwjJA3tG23IVsSrO3kuZYreGETT3EsUMManEkss0giijU5UBnkdUBJAG7kgVqy3/8AVZ4fzIqX8fm92zYbcFqrRweZt7FzNPAyC7XWOCQ5K9SrfcNcOQhJkkV444VoSIkYsTPrM7TwLrUNu0zWMSKpaV2e83PLGE8wRnACKy+U4UBAf4iKxJXI9WufpJ4100XK3Vlp/nWEMk13DHq9hNcwrCpM7SQQzy8phuI2bJX44r2mLjhUQlaywdooPWSR5JpY7KhltB/bkyc8ssZciLkc9UBApJEhLMGkYsMhQqbRg/lYgkjcPyuR6SRkKM84HgEAkHrHq2ljgnk7RtGfgcfryauL9MO3f+o/Lnj3ERxSWGt7s2+HMbtykAzFFpZpEdl4FeESKVjCszSryWKqr3Hg+3N54k0aBUD7ry3B27cBVuI2JO7GTtySBzgZHRx2RgM4B55Bx12cd11mqOOf/Yn/AM+/t/x7f78c/vrehc85GPUcfpk4/rkn96ta+tcqU0pTSlNKU0pTSlNKU0pXkt+0hktk7tx5Usbe3M3CoHP+s42yY/gj+ar/ACHvx7jVVrkAudG1WAjPm6deJgdndbyYA+DnBH3ArpuF3wSr7tG4H3O04rnfk3c2Txk9qyekkd7NUmBPQFcXmLtLsrAgHukCOrKxdjwOvIPGhetyBLllAYB4YJN2NpcSIGb1DJJLDI3DnODx1g+1hjJBIAJA++Psevgk4HtVZfL2XjsbO3/Rl6yWJfGu/bFdyqh44X27fqzqhLGeLurrz05R44x6pAKAUmmmY3dm6OwjOqaemzJUS4uQwMmCAxiLERlt2wMwQDe1ZD4XcReJPDzAnKa5o8gwMsdmpWrDBAwuWwN2Dg8kEd80GNubtu+KPC9K5hoYduRbu8esu4lzWOle9CN5XkhppiTc/qlfIBrFeK9ZCCOxFVMUlaqkSWre07mVdMuGwAsdtePuDqUzsmYZU+oFQRnk/PAJr9AvGr6Ymq+K5Ybky3L6TrC/hDFNCkIjsIfNcSxxi3eFk3PHGzhdyvIWeUmOPdRBKUtdEr25wboHp168swijkM/M81mGXrAkDRxydpAUmDBXkKBg+vCKGyWkRWKs53ui+oc7RvHryW4VPV7d1oEMYB55BPI98kY+398Vss/T+wqZr6i/GSmJnXHZW3kW5lEyM+Lw+SvJKUKholhCV0/t+rGZlLyyhy6jO/phaGbxlou5lISaefyx+Yfh7eeQMy84B3Ocg4Yqh/lArvt//kUED5546BI/X5/ziunEfA5/wNbk1Y1+dKU0pTSlNKU0pTSlNKU0pX6p41lieJwSkqtE4H7pIpRv/nDHnXXKoZChGVf0MMZyrcMP3XOftmvhGRj9f7gj/NczPkVq23dx5jb0lmrXuVs3nMfDSazXis2JMflLUDyV6zy+pYZnRfUMSyMsrcsfcNr89/EFlPBqOpARyPHa31xZSyKjuiyQySxorMobYGVN0YbAZRkHgmsJeLZLIoBJRmBHeACRk4GcVXncviybe9+9uOvlMnxJs7eOw7eAry1+jUs/Hi2t51lniQxZGrDOIcV3sJFOFuK1eSdO2o2ki8k05o7S2trho9Vt75MlzeK1iIpRGcMkUdrN5rBmPmyyPFIkUashLWOnzyWdzbXcCJJLa3ltdRh8ld1vNFOu/YQ5jLJ6lU7yu4JyQK1Tp+nNvnadvY+Dv72qT7b2lubFZ3HAbWtY7cGQOMv077LcyM2ZuY6CoUq1hZWvXnp47rAlCBrIjjm9afxjey2L2cvh24tJrqFofOkuoWhjMybHuAuwSPFGJQ+wukm3arbScDYfWPrWNYt9UZfDctpqOrWFxZXEkupI9nCbiExZiiWxifZGWZ42BWRmbMrPyTdyTa+Z25kUTMpWNi5PcdGiuwXjIatyWvNK0MbHpDNICYfVAFqvIropSV1XzS+tprN/LmVB6WAEbqxfYwjZjgna3Al2YJKNwPTk+DYIwDjGMqfkHkk9kEtuwCAcYyPc7Vf0xsMb3n2vkAn4YTaO6Mh7IPTjNqGpi4+AB1i977hRyFPI6gH3Pp30Wh87xcJvUwt9KvZSG52FzFAME9FjKQvHIyB0akWwzJnngH+v/M/0roY1txVhTSlNKU0pTSlNKU0pTSlNKV8sOQeCQfkcf5/b/nXFhkd4wc5HJ4B6+9fR+mf/ADXNZ9b2wMZe84+SMZmKVexXq7zk3DQSWEGaGXKVqWagmqSARS1pFns+oskTqsgXo5KnvrSrx3qF74a8b+KYbSWeGK+nk8xI2wkkN6kF2UeMqQ6kySbOP4ZA8sqS27E76I/iptp2gyMTjv1LnB+xJyPfuqnZW+UqhWLGVYwvcyMW5HYiQuODyvPDfl2PLcngka8ceR2nMgIRi7EcAAAk8IAcAFO8DJOejmulQwxgkdZxnHHXtnof2PHdQxuvM5CxVgoyZK0akEslmvVeeQxJNZCxzngMJA0kY5ZiQjofTA7Ek31ldXBQQi4nESsZEQO6hWYEMVOemHpI6wAcZ5qxhzjGTjBx18jn759zWM27EfUVgvKn8WKhR15UlW7HhVIV1IQtyQApXgkmRNIFwSpYgH/UQM8Eckkk/wAxY5J7JAJqR++fuf8Ab9q3h/pS4Z5t4+R8/JAVXHbSxuKjc+m475bOfcBwVZiplhxJkCHkxo/V+sgIPu30Htw2q63dKQyw6daQbsEFXnui5U/9sA5z2ffAxLtDy446U/f3/tW73Wz1TaaUppSmlKaUppSmlKaUppSmlK0XfqObcjw3mdM1B6n/AHTs7EZSyfTHppbxsl3BuUZASA1XHVGZ5B+MhfhvyHGn31005bfxbHdoADqOmW8z5J5eB5LUkcHpY4j3zk8ccUGpIFuQQMmVFJ4GAU3DPHJJBAJ6HXdaoNxTMjS8Hg9WU8FWZWPBIHUn24+W6of2C/IPhKp68kbuR78Dj/Y89+9Q1GN2OcY5/wDz25OP/FRBk0ksP2AkkYluD6Z44BPCuQWZyAwKs6r+TfjwU7auLUBSCxGSPygjP9Bz/bHPHHc6IfthR37844+eR/ms5g4hGULlY+OfxduCO3v3Kg9i3Pb26P2P8ffXe7l2IVWzjacjaMDoAnAJJ64x9z2e359/+f8AO66DP0pcS0eyfKmcMPCXdxbZxMFgo6+oMZirluzGobheEbKQO38wznuq+wOzH0Is/L0rXbo5LT31pCCF9obeRmT9A8u4nkg8VNtMbXO3nIBb5+37c5HtnJ9q2z62AqXTSlNKU0pTSlNKU0pTSlNKU0pWsr9Qjwn5A35X23v3YuCsboj21h8nhtw4XGRmXNpSluJkKmSo1EDT5GCF2sxW69YPYgDJOsLRGV4/BPrN4S1XXEsdU0y1e9/6fDNBdQQAvdJFvedZoYVG+5T1MkiQq80ZCsI5FLYqtRglZo5o1LhVZHCgsyru3Bgv83XI9hzmueryBLFUsW6uYxl2jbgb0p697GW1licJ1Al6wS+iVHsyOysAVB499aq/hJ0neJsRzKQDEzLHKhIB2tFMsbxsB+dZI0YdEZzVXGckgMAxxwxKn25IbG3jk57696hczYBz2jeio9QkoomQj8uVAQR9vYe3KoxAALEM45uYLe9Hauqgcb2jx78ttlVAvGQTjjB74qaBIByVbBVT6wQcj/UM9cD/AGzjFSdsrD5/deUp4DYu1Nxbwz9spFUxO2cHevW5CSFXsi11kSJT7vOY2jRQxZgAWEyy0m61G6SC2jkvJm6t7YSXEpYMAoEcCzLgkhT5jxKGIyyrlh2r6idoLMBkqnfR66GM8fce3tXU/wDQv4d3f4V8AYTbu/adbGbuzGZzG6sxiK8sVl8K2X+0ipYq3bhZ4rF6pQo1zcMckkcFiaWsjssPOtwvpzoF34e8MW1lfRCC8kuJrueHcryRCUjyoZXTK+asYVpVQlI5GaNWcLvazhQpGARtJ9RGc4Jx/gCri6z6uymlKaUppSmlKaUppSmlKaUppShHOvmP84+2aVGW9fDHifyK0km+fHOy902JEMbXc1tzG3Mj6fQxhFybQLkFAU8L1sgr/Eg8EUeoeG9C1di+q6PpeoPtKh7uxt5pAD7eZJGz7TjP5iQfykDArreGJ/zxoxznJUZz+uM/rzzUcV/o8+mGtJDLD4P8dK8Enqxg4CN4/U6lCzxSyvFL2QlHWVJFdPxcMvA1Up9PfBUYGzwtoQOcnNhEw+f5geM4wDwBwOK4i3gHAiQf9oqYdo+O9i7BrNT2Rs7a20K0ixpNDtrAYvCLYSEcRLYOOrV3s9OSQ1hpTySfkknIrLS7LTlKWNpa2cZxmO0t4bZCB1uEMaM20cLuY4967QABgAAfAGB/QV7P4+NWNfaaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSviTv0f0uvqdT07c9e5B69upB69uO3BB689SDxoc+3ftnr9/t845+Aa+rtyN2doOW243bRydu7jcRnbnjOM8VQuh9Qfn/AA22s424vp83nnN0Jav/ANKt4rDy4vbSJLJH/SPXqLNlc1NRp07FK5m7YeK4J7M2Pr1lGNytzGYvFq2rxxSibR7yWUufJaG38uLZvKosiB7hmCghnYskjKSrKphldNiLr6X/AEuvtXsDpP1Y8N6bojLbDUItR1e3vdT3RKx1BoLlo9O0+K4uJYriDT7by5LdALeeS4Zb6xS8nvxF52q+V8Tt7JVNk73xMOcoX7Zyl/B2IduwSY63apPCmWsirJYW5LSnkoTRU3hkRooppkndVNrpmpLqUMEqW11Es0bsXeB0gjaOSSMqZJFjzuMZK7VbgjIX3858c/T6fwRqWr6fca/4dvZdLvLS2Fnbarby6tNFe21vdJN+Aga4CC2juolu1ecPE4YhWVXK/wD/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHQABAAICAwEBAAAAAAAAAAAAAAcJBQgBBgoCA//EADAQAAICAgIBAwMDAwQDAQAAAAECAwQABQYREgcTIQgUMSIjQRVR8CQyYZEXcdGB/8QAHQEBAAEFAQEBAAAAAAAAAAAAAAgBBAUGBwkCA//EADQRAAIBAwMDAgUDAgYDAAAAAAECAwAEEQUSIQYTMQdBFCIjMlFhcfAVkTRCUoGh4TVi0f/aAAwDAQACEQMRAD8A9/GKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSnY76/n/P/uM+38/n/X5pg/iviSRIkZ5HVEUds7sqKo/jtmIA7PwOz+c+SwXyQP3IA/uSB7jjOeRQAngAk/gAkn/YA+1fSsGHYPYIBB/uCOwR/cEH4P4P8fGfQIPg5H5HIP6g+CP1HFUByPBHJBBGCCPII9iPcea5xVaYpTFKYpTFKYpTFKYpTFKYpXBPX9v/ANPWUP8AelQp6levnp76ZSfZbvaifcyLJ9vptePutjNMigpXWvH23vysQEh/39frk9uIPIvOOsPVPpDo2RLPUb/4nVpeINIsB8TfyyZwqCGPJVnP2B9pYkcBcsOgdIemXV3WoafStOePTYyve1S7PYsoUP3yNM+F7cY5dgTjwqu2FauKT6qOe3/Vurz7+tc+476eVnNa5xBNTq97pdiKrWozRagL1SXWf1BGimbehLFmC7FLFCZ4FDtHm39V+qrrrO46ilvtYsOmljhjTp34a0vbRmgjkEltNu+HSzkmfEj6gss8qsCArrH8ksF9CdAtugZ+mRpvTGr9XSmS4g6h/qN9p9/bR3HalguY5ezOL8W2JIv6O4hjMMgldUeQYk3bfUxt+dLcqalZOOyGpFZjs8itU5ddLSsBjEW1ccEJeKQRlpJoJ3WJo5fdiSWMob3XfVPqHWYZ5bW3m0aCKOJ5Lm6nhksexcGQQ8xlVAkKj5o5TtSN2YBhitNsvR3SelpLJtUmt9aNzPLCLTTIrpb8S2xVrjt3DNKVkiyo2TwIfnjAASVZBhfRH1y5dpuQbWlruQVOV6OTS270vDLt9LdPTbapchMc+h5FVaaTS6/cwptEalfrbGq9z7KaCGrIbbWnRfqv1BpkN415JH1Bai2FxCkmrWzL3xKd1lDNEX7c10Ela0MkQ2J2xdRbHLrb+o/pbobDT5Vguun5pLlbf4oaXNHPc28kZLSz2VwsYuHsHaAXIiuCJFaRYijLGDYLwf1Y4zzUQVIPutNvHgedtFuBFFddIz1LLRsQST0NrXjPXnNr7U3thkFiOCRjGshOlPUXp7qwRQ2ks1lqLwGdtL1NBb3bRodjzWkgZ7PUYA3PdsbiXapUvGgZRUc+oejdZ6cEk06RXunJKIhqWnmSW2R3y0cd1HJHHd2LunKLeW8Pcwe2XAJEo5vgOQCPf8VqtMrSmKUxSmKUxSmKUxSmKV1Xmcm5j4/fOicw32hlVLKqHaqDDL1Z8SQWWGT23fxBZYw7gHr4xesLetp16NOlWC8a1nSCdhuEMrROIpthBDdqQq+Me2TkAir7TDaDULI38bzWa3MDXEEfDTwiVDLCrZAUyx7kySM/aOTVOHI+D+qWt5La5Bfpwbl4ZJ7Na/FRm2sc9ibyVrcrVEtX5gYpJCqBF6LMyjyPQ877vpnqnQOpptbvNPkur+EzzR6u9rc6pDLPLvSa4MljHcPKSjll7mNuSx2nAPorovVfp7qvT9vo1ncvZQSxw29zYy3kemOkEYULbJHcfD20XzoquQ7qqqis3nHSdn6octpN9lY0dCMfbCGVKdC1r2mMTFxC9Te16sssZPk0cYLKJXI/n5v2681YEw3NjaovbCsUimtllCklYmjv0jcoMsdrqCjElQ7HbW12XQnTU4F1BqN6QZS6GW8trtIy6gb47jSZ54o5BhA0gYYjQCRQqgiN+Mc7hpeoGs2vIYZZ9ZNdp0N1cE0tnWR6C80r3adekJAjQKLzbC5WjgnaHY1BTM3lXCNhV1+Yajp0l8bebSDqsMuoW8UzTQNYvAYdxhVikjQLcyzrAIt8EyGJQCpD53V+g47rQtSk0djHrS6ZMNJSRBDei+tJFkiIuypkTuy2xtlm70Ud3DNHcvE+9dku77g1Hje3j9RvSPk0tyu87iv/AEmSaXZNJYRhLr7GsjhNueGSE9Aez+2gP7gZQRZ65pB0y9Gu9G6o2p2NxMyR/Dmd9QEzbt0DWyQtPlkJHdKjtoVzJ7VqOl9USa1prdF+omiLayxxKzm+VI7KONG+neQ3sjrBDMj8MDLl2ypRlIUzN6Yaz6geV26e4i43Jq64sm9HyHZwppmq2A32zzxrLZrWI7XiHLBagaav+4xmR/nbukejvVfUryz1uwiksU+IW8XVdQC2dxbykGFpSkzQugCnaxSDFxEGYHLkDmPXF76PaHBdaXLqovZVj+Dk0vTXOppcRMvc7ReKKaJogxBYmf6LtsVVWM1avxtdumnpx7yWOfYxwxpPYjUIth1RQ0wRelUSMCwAC/BB8V78RP8A01bxLK1S/kWa7S3hW4lRdiSzLGollVRkIHk3FUBO0Y5IwBBq+Nqby5ayjaG0aaVreF2LvDCZGMUTN4Yxx7VZhwWzjPk53L6rWmKUxSmKUxSmKUxSmKV+cqLLG8bqGSQe26n8Mj/pcH/2pIz5YAqVIyGG0g+CG4IP+xqoJBBHBHI/ccj/AJA59vNUbc55Tzfgux3cOgv3X/p+7u1bOsmuNEY6iXZQ3sB0n8XjUgmurwBiCPIE5ATrObXtH1K+j0i4uomivJo2g77xqsS3Dhyi7WzjgqimMkEYJAr0K6MsemOo9O059bgtVM2nQyrfJbJKRcNbRhBKySQh0LcM+HK+Mc1mKnrPu49XBciFbZM6EWYLclpGbsdh4ys5ZOuiHRlcKwJXpf05a6V1T1OE2y3azsrMrG6haVCGTcmGaRmXAOCN2A/I9hXzddFaG9zMhSW1RB9F7cRBx2jgqwKOrZxlWBUkAEuT56PyL6k7NGtI8mkpV7RBWH2rc8rfpJ+WM0fSjv8AAX+4/Ayy1brnqmGUW8S2CKQv10iJZcA8BSrLjb7suB5wMVntL9OtHmCSf1K/eNjl4pFijJyoyCUkByQR4IHksPNdX4r9QnqFyLaw10tVqVYMoCwxTCUp5A9GRZoVZl/Klo27IU9dZaWHU3U9xIO9q8wycfSxDuGWI4hFuABnjKuPAIH3C41forpSzhd4bF5GwwJmkPsOTtZZgM+D8y8Hk+xsN9HNlyPkVqGDc7Ga7X+4oQ04naXsNKyFmlYyMkzjseP7ae2CVBbsZITo0X949it5fXF0jywKkcs0jrGvcQFtjMyscjcScgBR7g1GrrqHS9OiuZNOsYLWQQXL3MiLGO5sRlQKBEpjXwCd5zk7ferBx+Pz3/8AP4/GSbqMg8D9h+lc4qtMUpilMUpilMUpilMUrgjsEf3H+fjKHOOPyP7ZGf8Aj39vNUOcHHnBxnxn2qm36r9Va03qry41a9aStesU7715Q9YB72tq3JZY7VVWcGWSdzIs1eVjKG8ZlA8ciD6tWRi6l1QqigSGO5Ofp/NPFFKWUjcrAux3fLnJwW55mZ6O6ksvSukxyNKGh78BdNsu5Ybh0VJIpcj5VAw0bKxzjkedWdZbryecMlO7C6nsmGxTmXvs9Mvm0crK/Z+fFGPX4Hfxymy3fMWjbByoYmNoz55DAqwwf8uDtH+Zq7Fdt8wIuYJCCcKySRSbgvhlEcm0jJHMhUeB7mop58+orSyTTtslYN4pF9pF7jF/z4EzKvkOv1fPXf47+O8LrERkdcnGGXYFQMTjg7juyFHnPnHy8HBrZNEmlWIhUiUFMmQzMEHgYAWJiM/aoxnJHnHGO45zDQ8L1V3lNqrs5ItfAZ44J5aUAnkUF1hVo3kdSfElnCnxA7PxllaTR2xaRkllVB9oZY8sMHb5kONucfKDjO4kDi7k0q81u6h0+CS2iNwSm/ZNL21Y8yEERhvbAH3HCgKTVwf0Tcst+oXGuK8x2Gmh0i7urNsKWqjea21eAQWft/euzRRfcyGOOOyJY4YIlLqFD9oTLL0kZrx9PuZohG3YkuBD95hxCxRWdgG3DhtwAXJGBkcQ99d9Nh0C/wBW0e1u2vEtbiO0lu27cInkEsazBIY2dY4lbKCJpJHI3b2HgWO5Ir96jLTFKYpTFKYpTFKYpTFKYpTFKrA+s7ViPn0VsKD99x/XWWPQ6ZoXu0yp7+CQtaPsMOirKPkd9Rk9Z7YLrSSFf8Rp8LbjnaSrtEM4xx8nPzZ4PHFSb9F7vOhzRknNrqc4ABwQkkMMmR7jLSNgjIyDxmqyaNavsOQ2LGo20Zv0BbC0VmrLIbDwV4K/9Rjki+6mhdYrJcVnVVsz+czdxGMcfige3VVnjVkK+e2cENu3AMmMbSMBSxUAk+SM93kmlMTNFEwMmCskoy+ISp2qW+1JMgvkNuTAAwcmpf1o+pv1aqcn2/hyHTomj9SZ+Lx6CzS13m1OtvpdSolRYDYleSg0xjsNZg854XsCvIsS5k7nRtIaz78aA3DwjcAxJZioYFVOAqkH5h44z4Oamp0z6R9Oz6dp5utN1FobrpeDWY9XXUZNqXMulLddxgVlhMzXTKEh2yRrG0MbbCS533scM5rz2PjWm0eqqXNHdnrvu5bWxgrSVKtmUyOZKjAPY9is8cQSLt28SHIY/Gg2cNvJcCA4IaRFk2rtICgc5b5QVUEDBIYjB5NR6tNatdHtr3UJJZYL6K3kazIi3q7gNsVXVwEIcBQX4QKACdoFeiv6ZtLT1et1VCnGkVTU8fSvTSJBHFHFGKUEQRPnwHs9gD/n5J6PcvPS6EGad1CrHHaEIq5woZ441C59ginz5JNQF9VrmWeQSTSSPNc3xlmkkO55HIlkkMh4yxkYHIyvHGQONu87VXGKYpTFKYpTFKYpTFKYpTFKYpVcH1/WIOP6nU8psFooK/H9vDLOkby+21a3VMLOkSO7KHv9n9J8V82I8Qc4T6wwR/E6PdSMET4e5jZjnA7cqOu7jnd3GVcZOTxxXfvRIy3R1TTYFMkz3dnIsYIBKyRTI4XJALfTQgA5OMYOKqX4Dw3U6w2N/ZWobm4sx3jPblYRtZnAaB0EsiAysCCqpGkjhFHRdSTwK4uxHK8KMVZsvKVCnIxtwAT9wHhvt8ZBOakxc3U95FFFu7cFpH2ERFC7QpJKMyA5CktglmYBmRSEwoqA+pL0W59H6hcnki9O95fn23q5HtNNyCvqr0tGXV7jkkO1msHZQq+rrQx11Yqttvbhga8LtirJHHFN+02o2fwnbMkUcohIXLHeoCqSuTjngYXHzDIGecT76K676ebpTp+WfquyCWXScVlqOlPdwpcJdW+kSWKxrZvm+lYTqEyuQ4Ns0SMshK3b+jOzoQWdPXcLPLdlhEbwvGQWlYFSZPNwQylSntr3IpDAsGBzXunNPlnujIWARJ2D7cMxYMdwOQf9QBx5JwcEcQK6sn2W8/BISMl0OQoUKCcKuRw25cDIUkAEk83k+gtQR0LcxXrwpU4VPXQHmzyP138/IRPn/g/J/iXHpnbiOK9cDgRQRqfAwWdv7nbkke/nHAqGHqROZLmzU5BZ7iUg54P01A59hkj3B85zWw2dWrmVMUpilMUpilMUpilMUpilMUrSz60YOuJ8Xu+JIXbbDXs3X6QLWtacI/x0UmNUxlSSr9+HieyDxz1jgZ9GsZ0GDDdTR5zkESwGQ8ZBHMXPP/yuxejVwItb1CBtpWa1t3xkbh25yhIGDk4lJ5z4HH5qW3/FtXyNI6O0hWSvTvQbCNK9h6sta1DBarwyxGIAwypXuWolC+XjHO5Cg+D5FqCdobmV0Yb3BQliW84LKAeQAQGHJOQBnzUsVkbtxlcqCWIAUAMje+cjIIOPAHHArVX1B9HeJUNlLuF2fOooataxDY1MvNNxbo3oZpddZW2FmtWJ6awya+KsiwNAzwG7FYieG24e11HU7qWWOLbaMHaM7vhkWROTujymN24NgkjcoAMZV8MNp0QDsZXhjxkkY3gkDeHAG4ckbtyjBGdvB4+jKpp//KNvjehgvVdRpXo+xXu7KbYGwa1U14WiFieSRK1GsFqxfsoSSVWQ+x7a7fos7STF34EKIWkCKgkZtzMwx52cg5+5mBLHbisP17bLadPwyMyyXN6zhxgkwqp2rHuKjmRiWKIwjRVXcpDKw9P/AKKVxHx+3L+POzDEP+RHWjYkD8/7pD2T+Sck76bpt0m4fzvuEXPJB2wqflJ/9icjH5NQY9QZN2q28eclLZmPnzJM3598KB+RU0Z0atCpilMUpilMUpilMUpilMUpilaxfVnq1u+k9y6xUDUbbWXWLhiFjld6byAqD4mP3w3ZHj4huz8/PNPVaFpek55VwBaXUEz58sj7oSBxgklwBk/nPGa6T6UzrF1bBCwYi8tZ4FxjiRQJVPOAftOffgYBJFU4WZ2iuSmGBbHusSZYP3W+AfbZ/b8z/sXxHmCQSewQFCwwmkaK5kG0Hc24so5YY4LAHaCB8oC4OPu5OamvbxI1uoeR4mTBw5I8jjbvwOcZyFAHIwKizm9WSxO8Vmt70MxeFovZkTuGVV7jdgS7MG9wuQPny7Xwb5GJv52SZGjDpgghmU8uB8uD+GPO0AH2yM1selKgtmIkTJLHaWBB5A3c4+bGcHI55Oak36afSPgfC9/a5LoOPpq91tgsF+7JbuTGeEP7gjSG1M0cSo7O3jAi+ZY+RPZGbZ0zNO8qs87uZCwyxLIQdp2KhOwAZ+4AMR9xPFap1zqt1f2sVlcSK8FqTJFEkcKFZD8u4tCoZzhQWLseQvygqKvh9IqrQcPpysfm3NasAdHvwDrEnl5fqBIQnoDofgHrJm+n8Bi6ct3OPrz3EoA9gH7K/txGeOfzweKgt1zOJuo7lQCDbQw25z+QDI2McY3SH2z+tSjm71qFMUpilMUpilMUpilMUpilMUqEfqO4byPnvor6g8Y4hEk/K72jebjkMl3+nLPudfYgv0qpvFJEq/eNXeoJpUaJGnUuUXt10z1B0W+6g6O17StL/wDJXFkzaeomFuXu4JI7iGITMCkfeMRhLONgEh3ED5hunp3rendO9a9O6vrBYaTa6jGNTZIPiWSxmV4J5RbhlaZoRIJVjQl2KfKrHCnyecx9cuf+iPINno/WjQ8q4jvKt6GKkOacL2nGPKKQTPJHd5FVRuP7G3FI0NUWKlhBIsf3Dxu1gMPNy4PWWjX89prOnXlldRy7RHqVrLaSMdw3K8zKLaZkUkbo5zG+0uG8ivWTS+lujOsNPtdQ6U1LS9Ss5YWeR9G1e21BVI2opSxkkTUrdDtkkMckBMZcxjPbLHAco+s3hEbM9jlPH44FrxvUaPkHzYlNfyljmU+TROLI9iFYveZg5fxjRfJv1vNS1JlLlIWyCADcRADCggMe5kkc/aRgAkDiruw9K2Jjjggvi+XWZWsA2xFkKBkH2HfHh2EpRVGBvJwlbWfS56j+oHrDFo63ANXvNztbFyIWb+g4/sNhrGijeSbyO3swjXU6s8MtOMubCW0+3uSfoEngMHpV56haxqlhpXTFhqVzdTSqJ307TZruEIu7cj3MiCzt4pj2t799fpJIWKJknXPULp3oToy0v9Q6k1HSLOxjgLQ2+p6rb2953X2RhV0+J5LmaeNkleNBCyb5Il2My5r0z+mPHtjxfgnGNLuJfe29LVQrs5BMtgNfmZrFv95VVZPCWQxBo/2uk/aHt+JPqJ0XpN3ovS+h6bfyPLfW1hH8bI0wnLXc+ZrjMi/JJtkcoGQCPC/T+TFeUHVmp2ms9Sa1qdhH2rK7vpTaR9vtbbWHEFv9MlmXMUattkJkGfqYkLiu+5tNa9TFKYpTFKYpTFKYpTFKYpTFKEd/5/n/AFlCM/zz+h/Sn8/UfsfY/qOaw2247od/X+z3mm1e6qfq/wBLt9fT2dcB+gwEN+GxGoYAdqqgHofHxlvPZ2tyuy5t4LlP9FxFHOn7bZVcAfoAM++auLa7urKTu2dzcWkuMCW1nlt5BjwQ8LowI8gg8HJ8kmo7i9APQuG4b8Xo36WR3SfL7pOAcWFgN8jyEh1ZIYAkdj56/HWY9OndAjYumiaQjlSpZdOs1JDeQfo85/XNZpur+rXiWF+qeo2iUgiNtc1QpkeOPiuf9/PvUk67SajUV/tNVrKGsq/H+m11OtQr/A8R+xTigiPQHQ7Q9D8dZkoraC3XbbxRwJ/ogRYk/GdsYVSQOBkHisHcXFxdyd26nmuJD5knlkmc85ILys7YJ5PPnnzWTACgADoD+M/YDAAHgcV+Pj+fz/uucrSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKV8sSB2B38j/rv5PX89D+P5yhOP54/Wn8/f8AQHwD+p4/Naa2vqc5xxnZcqq8u9Dub2a+v3G5raCXg2n5LyUTazS3dlq5J9vPJoK0ZtX7dBLmq/osWwq3tNY+/jkEiR159abXrm3kmW60q7ZRLKkRtIp5zshkeJjKTEoBkZA0PbDI8W6TcPpiXv0Po905rFlpE2heo/TlvcT6fps2qR9Tajo+lAXmpWlnfRw6dHHqkxEdvBdNBeLqUtrNBqMa2cmwu8sEl+k/r/p/U6lru+O8n0u1ubnd6CavNotzZ1le9x+Gq1+WfcjXw06NeSeaatWi2TVrosVpq1qvBZjaIX2naxDfqhEU0bvJLEB2ZWQNAF7jNL21RBvYoFcq4dWVlDAgah1x6Yah0dcXRGq6LqNjBp+mamkianYQ3z2+rvN8JCmntdPPdXEUMcU11JYie07c8c1tNPARKf/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAgMBAAAAAAAAAAAAAAgJAQcDCgIEBgX/xAAxEAACAgICAQMDAwMEAgMAAAABAgMEAAUGERIHEyEIFDEiQVEVFjIjYXGRCSSBoeH/xAAeAQEAAQQDAQEAAAAAAAAAAAAACAEGBwkEBQoDAv/EADkRAAIBBAIBAwIFAgIJBQAAAAECAwAEBREGEiEHEzEUIggJQVFxIzJhgRUkMzRCUpGx8BdDU4LB/9oADAMBAAIRAxEAPwDv8YpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFKYpTFK4DZiDmMt1IOz4dr5lR+WCeXmVHwCfH4JHf5GfIzRh/a7L7mixj7p7oQf8ft9vcKnY1pSTsePND4G/Ot6B0dEgE6Df2lvBGt72D41onm8h+x7/AOPnr/nrvrPpsfz/AACf+1V0f4/nQ/76rPYP4IPf4/3xsa3+lUplaUxSmKUxSmKUxSmKUxSmKUxSsE9d/j4/k9f95QkKNmlRy9WvXLV8Nv7Di+svU139fVtPbmndQutnvV2GtSFpVaq99iUsJBOk0Slqn3ERhncpFL1i/FBwD0/5Ffenz8uxGI5TBhjeZK4uisz4GTJ27rhjHAzJBc5Nyy3kVjN7nZTaLNA8dwFOSOJenWY5BaQ5k2E9xjpLkxW8MZK/XpbPGbsSOoMsNr2YQ+7GUZmE5iYtE2odcc1ey4Z7kFfYeo0vI99atch2/qSdtPvpNZt9lHPaSpb1m5W67Ua1B4RPW1ItVl2FmubNY9R2IYQ8d5Bc4ONYHufUOHlWae+5LkvWyyvcjlRjMlklubq2s8hxfI2dybuxXFJbiSwsJpmiv57Y3FsHh963zrmLuHkLwzS23E4sVi7azxFjwj6CHFfXWdqbeKWaHI41rfV3JeFylze/TyG3hmEFwoLxzeHLrHLL1NJZvW31tWz7EE7W9e7aepJJEFMscVGvRpyR/ceCr7UOxhmjZ2bycnrLS5z6n5izjgvJPxCev15NFbRTjIxWS4HEyzhTHqDEnG2CKZnC6iky6tEwaR3LDsefx5MNaTyRj049MnhLPELa+SXJXSI7OCZruW5lEhiL9i0loygL1ARQFEjeBepxrcM0NXbcm5LvdpXEMc4sO68jCtO0VaXa2JxBJZjkVU/1Lp8rsryCJpwO3mh6X/iGxQ9NON3nKOUZzkWYaazsbqGBBFyOGa4uWgtp8mGmVvp3RU1LkJHN87EW/vlgXwzyriElzyTJNjcTjMTaMJplMAIw7sEEkq2Ma944WUltQ25jWBBuQRr26bBoevXHKMtM7nY0bel2F2HXwckoWK4Wjctzx16lTe6hpRertYsSxwRXtdDYp+RDWoaEQDtmbEev/Crm3tcwvIcJnOI399Hjo+WYbI2jDDZG6uY7W1x/K8I9wMnjHlnljt0v7a2ntS+3uLexQ+7JaE3B8r2lto7O7tsrbwSXT4q7ikIuraGJ557jFXyx+xciKFGkkt7hopSpVbWS5b7akOD2Af5AOSCB3/I8EfOiPBHj9jVjgggEfBGx414Px4/T+KzlarTFKYpTFKYpTFKYpTFK+W5m29Xjmz/tshNu0BSrL7QneAv2rTxQt2sskIIkRGWQEr2I3YBTbXLhnjx3LjjDwx51rG4TGyzp7scN00UiwzGLRMvsyFJfa0e/XQViArdhivoDkbQZMO1h76fUqj+2Wj7AsnfalA4BUuGUrsEMuuwqv2uk5KOUHebi5PDsWvNPd3kuqq76qbKzJ78wPjLO9p1Ro1Nmu/tLKT0jqir5yeZcD9QT6sXPNeYgHN3WeuL3K8vTBQ8vwC3UVzG0ru8MlzeC4MaCFIsnYl4fO0tmjHWb+NyGIXj4xeNiWW0W19m2xseQkxd01uYXMSBHdIlhWSQSskMg7sgPeRfuPocv9Tt9rdgYNbt7AriSUz2Grw+E9j9pI2sVoTGYoyieHikQUBHRvBfG3PUT8Qvq1hOS3cGJy+RucNbSLaNPd4sLjZ5rIv7M1gzY6xlijt7WeK1aF4xF5RiDIFI7Di/AcNeWHuXtlEJ2AaOIXLvKsLEkrMFmnEgeVWkDKzSB12HAr0qnqhyHkbCkErbvXV9XLBsa8j6kW/6rdk8NSKa3JQ1639vBamNWIyBlR18EP6Guzhnq/wCqPqdhcrj8hibDmWK/0W+OvcVcTYKxmGUvp1bGtYnK3CXOTuyltIi28TuyRC4ljVCOj/LJ8FxOGPuCSbEXs96kmPuRHfmD6OCANevcmCAi2ihmeNfemVCsjbcyKdr4Rc4hqGWjZkqbnT3EZ6VaSCbX70Vj4EvEdVCJq9sFlCTpKG/SrRN7TKosOw9RudcMyeWxUPH5ORcayLzxJx67w8ON5La20xKEQwYBHhsrhYpV+luLWdo3Ea+w0MbLFF+xxU3kVrcQ+7YX1r1We8juYLzFtPG/t/1heyf6zAzI8jQyQmMs8izq7x9z63FeM19rs0PHOM84rtYnhay0m6RtXDEk6tEmyPLqd9BGPBZlEMkUsfgpglWQK63v6J8J5jm+SxzcU9G+XY9Z7+2F+75lcDgLS0juA9sM7Dyu3mjySwOkdwvQmZZET6S4BQmq8rzAtcfNDm87xidYYXFv7OPU5CR1jbubIYCa1YMCfaHYupLD3omQuat64hHuotFRTfTpYviGPzmVvcaRfH9LSSgBZZSvRklHfm3bdnvs+jjjKZVMJjlzU0Vxk1tIFu54mDrLKI1DSdwqB2kP3syjqzMWUlSNQNv/AKT6y4+hSRLb3W9pZBpgvjwR2bWvjW/Hxoa8/T539cOmKUxSmKUxSmKUxSmKV4v/AIn/AL/Hf4Pf4/8Aj/8AR+coToE/8v3fOh9vnyf28ef8Kofgj9wR/wBRr/8Aaq/9cNkNHyTkWurGaOR9ra7eGQxeAhmYoVaNlkHuRyJ2Q3QKgd/ny8y/4yuY5HgfrDz3i/Hb3IY2/bl+RuHurW5e1SO2hupGREe1ljukM8c8ZK+4oYK3ZR9wM2fS3HDLYTDXkyxmNbCBNOgPYtEEZSGDIejKygdTsNvx13Wh9VyDkkhlVdvYRU6IUe1MWXr8P9xDMSf2Pz+Pk/GYq9PPVz1QvhcQDleSkt4hGH+pFnciXx/7jZGyu2bQZR29wL48Da+cp5Hj+CiMZNhES21BBeMxPvW09qWMBSQToAeSSRvZH4vId/voq9gxbW1DKPAsUNePsAkxt3FAnTBuypAPySy9HO85X6oeoFjZSmLkd1DIbiAyCGOyjaVQ59ubta2MDB42bqhBDjuQGCkmvricHimuYUe1SWFg/VGa4YICqgr1eZvscAd/uUHWia1F/dvKbtkjZbK9LXhUIGeUvI57AWPuKKIk9fBaR+wgUKpH+OO8h6o87voVa45XkrmRtL/VlRAwX5Z5lCvKygNGGZmlUEL2AHm/zxrj1rChs7G2WaQsWVEKxAdT2cBpJWBUn7lQFT86ILVu/wBD4L215nrGnt3J68duJoq7TSyRrO7H2/ceWSSRkAZikJkKMR2V6BBk9+DXIci5R6sYe3yGUvbm0t54Lj6JruaSFpEYmKe4SVpZTC2jHEoKxFj1YdQAcQ+qsVlj+P3jpbW0cnssGmMKxt7YUE+2qKiqx2R26CTyPOvNXeV4lgghgXrqGKOIdfjqJFjHX8DpR8f/AFnpDgjEMMUQ+I40jGhrwiKg8f8A18f4fHiteDMXZmO9sxY7O/JJJ8/ya5s+tfmmKUxSmKUxSmKUxSmKU/P5yhG/3H8fNKra+qzX0KnNrzhFis7DW665GqFYxITC9aSTxHj2zPVJZuwSwJJJOeeL80PivHMR61T50QJa5jOYTjl8oiIiF4BFNjbm5kjAMcr/AOoad+quzr2dixLNMf0Du7ubjsESsWgs767t27KXCJ3ScJvz9qi58L/aNqPgECH1GwsDsFsGvJ+OnRn81I6/UAH8QfwD0Avx8/pOa2sTdZzG3MNzi0vniLjssEZZJE35BXRVnAA6jbM3wDupF3SCZAGjSbQ2VWRVZSPgdSw+fk/vsggk7r4vknIqye/HYaRpBIVSUIxDIF/xMY6B6YDxkXpgAQVI7OXfc5S+zEUlvdxK9wk6NFcSExFbYhlaKSIqoMqsVZZQFYAMpVtmu6xeGuGKzQdehj+5PcAeNgdO3fTEB1+106t8/YTrR49ZzJI6yQXa9O5UmVI1eaONCO2ChZG8SxI8gvn0WPf7gE5c2G5hPj7YYrJ4vHZOzjRYwk9lEXCDe5GmCl2bqCAwXuVJOy42OHkuKyyym5sZ7izuog7kRTyGJ3GyPaU+Ax8k66hm14Hmpa/Shqob3qBTZq1YVY5o7cMcc/3EY+2SQkEHx/HiGZXUkoSW6+etgX5enEsfeesx5DaRWq2zYxZ0jgunuRG9rNKWj6sFKaRQ0ySKw7NtSiMQ8f8A11yE0XEpoZJZmuBJ7EhliEbFZhG4Ox5bwzBmB3sE6HxVtA+AB/AGb6xvQ386G/5/y8VB/WvA/TxWcrSmKUxSmKUxSmKUxSmKUxSq2/rbpT/3bxCxDG7m5xy7F5J8Ef0++WPz0QzL/UFPifkhgAPkZoc/NuxftepHpVlhEWOR4dlbNXWMv3/0ZmQzxeBvshykbft/UVfBbRmR+GO7jGG5JDK6qtrlbWQB9H/fbXX2bPjf0LFtDx1B/U1X6un3dCeWzXj8pJPfVJZESWRZIoYErQ23kj972rDRzvMyurPLKpftVKHWbYZCGaSGEpcwyxJbmVIkuIRp+zSLEAyRq0EiQBCwYhVYRL9vYSOmCyvMYfaH+1eJg0IXYA0xbyX7Ek6H3A7P71Wj65fUX6k8cv8ANo6e7oB+Lcxs6jU6KzqdUs89WvsPs1jseUIs23lp2TLJZida8UiOJQjSVutimD9F/TfP8XwGXucbPHlsnx+Oe6ube9uIj7s1r73bonVDAjIo9p1MjN1Yl/vYyp4D6TWeUueHwTYy6lx2f4zbZq8zkd7cFrS4axuZbhlMY+nSaO7j6QwFSx2itFOBM7Tl0/uXtfELFV4VmiS00txjHXjR3keKExw9dzxRPDCPnpvENMWfsiAeRgxkN9cn65UKSiCOGCHcndQqytK8ibaISdmJUbJBHhjqsB3M+QjMb24jmfbKiq6LK4dvc7KwIUREbHUgFQNKDrVWN/RJUqf3pM9SWWyaGrun3ZUMSskqle44z2SS8oBkc+RAUDpQBmzb8r8Q3fO+Se2CzY3D3LyyCMRoEuGI+1Qztvu6ks7b0Qmjo6iZ+JCa7XAwm6SKFrrIWqrEjiUhkILBpAF2VCEhdELttfJ1amPkA/yBm8Yb0N/Ohv8AmoX1nK0pilMUpilMUpilMUpilMUqIH1U62vIOG7ebpWpNyCoJWQuqe9Rr3CW6BPiopCQqPIsFYBSfg6xPzHOOW13Z+mHJZBCLvFtzfGWc0sXurFJeYm1yO5FCs5jBxivKiozmNfcj8pWevQ29ljn5Jj4y3W5TEzsgbRZormS3+3YKg9bvqGYgAv5P7VwbXbUJ1+4s2a9aQ+JS0k3nUsFnUIqED5MnZKKQjdHrrsMM0Ny5G4zuUiSeGFL+0Yq09i7y29xpv74bb22bqxcd2BURgd5fu2GmVYWktiD1ikaI77xTxETwdULSBtlfsXR7N5BI8eTuqsPW/6e+e8p5bz5NLwW1t5OScng2Wg3kcGuNKOrckoyW2m21m1ANaiqJ1nilQ+HtySTlIzC42FcH9Q+PR8H43jZs9Ba5SzwaWEtpL7onE8YmiBjUpqQP2iWJwWWQyIiqH2gmNwD1Y41hLDhlxk+TQ2VlgcFc2eewrXNyJJLm3juWtlhxcUMoyLP7ysk8ckQ+4RhZS0qrY1sOISa6i2z+8htwpVHtVqLGxXkEhH60/SGmZlAYOQqBOvbJ8h3C/kXpxlcFjpb+7v8fM0brLIlq80spVmJZAzRR/ZAjBp5CqoWY7bYAaJGM5dBk7iLGw2/se9MGkvbxoopSEXqifJSFPB6RL9/gBguianL9BuskGy5dflhaP29bFXUn8r79mu4XvskEiEn8D9x0QO82nflUYOSKX1EzbqWV7W0tAzAaUyXMbhV8klSkXYMQAezqNgbqNn4obqJUwNjDMJU+qkmOidM0cLbYDfkbl0fkE/dsgirLs3L1D+mKUxSmKUxSmKUxSmKUxSmKVEj6xZ313ppQ3MPh7us5PryBJ8qVu1bdN/9wfGT89EddjrNcn5myXlr6D4TPWHtC4wvqFh37yosgWLI43KY6VejFSRIJQrFd68dvHis7/h4gjvudXOMl7BL7CXgPXYYtbyQXC6Px/ciH9fIUa1uqmDNpN9J9pciQVhKZIoonkrezN06JJXlhdZ4JVjlmjE6yFxFKygqWJGgPjZltM1Fde59LNNK4LCCJoHWSRG+nVJUeNYSVDlXU69tGR+6hhO+/wAfkLS2Zo/cl0gQu33MU/4i/wAbJPQkBQCfDDWq1zzzUaWhfqS1Z9tWhoSTSGpV3Npq9xphAqtYEryn/wBUwQSwIFKh4/GZZYpJxLkOXmec+vyeP6YzWoIUuEsYjIohkNw5R06e59Qzj3BIW+5YpEZGihKdnxvAfXW4aQr3lBJMtvGeo0+taCkb7sW6n7V2QdgCuPQbejUoSUtUjUDY+3FhjsLFgStShWvEVSyXWMRoDEgQr8sWcuxZs6fP8jzuUjiiyFzJOsEYjjV0Vl9klCVCbbTyFQ7OWJLKGHXt9vKm4kLO8adkFwndnCLAIyhldmLiSIqzsPO+4OwwOwBo21/QbXA43y+0ZBPIbeurzTAKB7gSzOUBUDshJUBPZ+FUfAGbp/ywIIm9O+bXsYXuc1YW8zRx9UEphmuWjVyAz9BIAd7CgjRIOhBv8TjFM/hLf2mgQWlzKkTE7CF4YVbROtExN+m9k+fmp+5tFqMFMUpilMUpilMUpilMUpilMUqH311wun008+26TJAOPNo99LK7eASClt6sUxDdEAlLPgSR0Fbs/AyHP47+KT8r/DdzGG3VJJMPkONZ/wBtlLF48fmIIpgqgMS3t3bEEa8AgsB9y5+/DFJH/wCtPELKSN5Rl2yOIWNELlpLqwmePQDLr7oN/OyQAPnR67nHPVib7r2ZJYkl82CSTTxdDpuyACV8m6YeIA6br56+Dnn1yfD2hCzwmVTE4YiONu4dd7YH7tHe96IABIB14rcNmPT+A2/uJFI0XtqSsUTsDtdlmPUHQ2SzA7H7MPFcnPfUuWnHI3hO8rgux6Mhcf5H/UIYAFQxJ7Tx77X5+Mpx7jJvZDJK4Zi5JdiFPf5JYMV2dgAJo7+POgD8OLcHjnZBtPa106kiPoe3XZU6JJLA62dfrv8AXUGi9U93sNg0LKa8Q8ZIUs+KF1Zj00IRgGCGPs+Z8vn8+PicvbKcSx1vaKwIll3pmiXfXqo2shbZQnZC9QRrZGjvd/5LgeMtLPuC0sn9QSmHsVTog2rlhssxYdeo0APB14PZP/8AHrTlHoadzM3k+85DdlDdkuRQr1qbh+x8KJhIyfJ/yPwO83LflvcfOJ9B73JEIq57meZmgC6LmHGR2+OBf/l3JHIya+UYE1pk/FxdRP6ryY2FCi4nEWsLA7C9rqWW6UqD5J9tlDfoCBr+7QnhmwWovUxSmKUxSmKUxSmKUxSmKUxStB/VJ6e7T1W+nj1j9PNHB91veVcA5DrdDV+5jp/dbxabXNNW+6mBhrmxsqlWBZZuokaQGV44/KRLC9UeLPzX095hxaKNZp8zgb+1tYWcIJL0R+/ZJ3ZWVe11DEAzAAHRJUbYZK9HeXWvA/VPgHLr6QQ4/A8rw1/kZvZa4MOOW6WHITCBGWSUxWc08ntxn3GCH2wz9VPRi5Fs/Vb0p5ZNxr1X4jy/073tSy9W/S5lpb+ikgtKAohp2LsMNK7ECp8bGvsW4GADJIQxGaU+U+kuUwUk1llsPd4+7id4zbXltNbMzR/7Z2aRAv6kqQRtSCAfO/TZgcnwLnmBiy/B89gOU4+5gWeCfj+StMmrQN9waeC2klubZ/8A5IriKF0IYMPBNY5761S/0tIotn7xPfVyO4nvrGqqCrRxHsR+PQRFYdns/wCP6ssrB+n1vFeBlhhG9FoQnaMOzNvrIxIOiw7NsFQfjsPHN4zxC3hvDI2PkVfLNbtauY2Ylm7bZQA5J328EDWjve/wvSHkHLPUDlWv0GirbPf7O7Yiig1OhpXN3tJ52lAriChrobNlVdyiyPMscKAs7yKp8xc2S4PdXKpa4fE32SyEu/p7Sxga6mmP9pRIoVkld+zADop3sAA7FdzzdeO8XwN5l8zcY/CWFtbySS32ZvLbE2cUYVjKZLi+kgidlQEqifcSR9rdt13nvpC9O916Y+gXAOM8ko2dZyEa2XabvW3Pa+51+x2s5szU5/ZaSNJYEESyRe47Qyecch81YDbn+Fz08yXpj6K8O4xmbO4x+aEV/l8vZXLoZbO+zF7LeS2kixO6JJCrRh4+3aNto33hwPMN6+8wx3OfVnl+fw11Be4WW+SzxV3bpIkV1aWEYt0uY/dVHMUzBmjZkUOv3qOjKTJnJC1hymKUxSmKUxSmKUxSmKUxSmKVhlDDpgCP4P4x81QgH5/cH/MV89vuI8W5TW+y5Nx3R8ip9Ov2m+1NDcVwsg6dBDsa9lFRgACiBVP8d/OcO7x1hkIzDf2VrfREFTFeW8N1GVP9w6TpIum8dvHnQ/YV2ONy2Vw8pnxGUyWLnJBM+Nv7uwmJUgqTJaTQuSpG186BJ8VozY/Rt9J+3sG3s/pv9Er1kt5Gez6a8Vkk8u/Ly8jrfz3895az+m/AHk91uF8XMhbsWOEx+9kgkjUAAJI2fHk+Tusi2/rn6z2kQhtvVf1EhiUaVIuY55FA/bQvvI/z/f8AetqcN9J/TH07hFfgXp9wzhcIUp4cV4zp9D2pHRDPradeVgynxbtyCvQI6Gd/jsDhMOvXE4nG4wef9wsbW1J387aGJGP+ZP7fFWZnuX8r5TIZuTcm5ByKUsG75zNZLLaI+CFv7mdFO/OwoOwDvxWwFUKAo+AB0M7UAAAD9P38n+Sf1J+SfknzVu/PyST+5Oz/ANTWcrSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKUxSmKV4sSB2B38j/rv5PX79D9v3yhOv8Az4/xp/5/P+APwD/ifH71DW19TnOOM7LlVXl3odzezX1+43NbQS8G0/JeSibWaW7stXJPt55NBWjNq/boJc1X9Fi2FW9prH38cgkSOvPbTZ65t5JlusVdsollSI2kU856QyPExlJiUAyMgaH2wyPF2k7D+mJc/Q+j3HMxZYibBeo/HLe4nx+NmykfJsjh8UBeZK0s76OHHRx5SYiO3gumgvFyUtrNBkY1s5Ohd5YNl+k/r/p/U6lru+O8n0u1ubnd6CavNotzZ1le9x+Gq1+WfcjXw06NeSeaatWi2TVrosVpq1qvBZjaIc7HZiG/VCIpo3eSWID2ZWQNAF9xml9tUQd2KBXKuHVlZQwIFoc49MMhw64uiMrhcjYwY/GZNJEydhDfPb5d5vpIUx7XTz3VxFDHFNdSWIntPbnjmtpp4CJT/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAEDBAMAAAAAAAAAAAAAAAkHCAoBAgQGAwUL/8QAMhAAAgICAQMDAwMCBQUAAAAAAgMBBAAFBgcREggTIQkUFSIxQVGhFhcyYZEjQkVysf/EAB4BAQACAgIDAQAAAAAAAAAAAAAICQYHAQUCAwQK/8QANBEAAgICAgEDAwIFAwMFAAAAAQIDBAAFBhESBxMhCCIxFEEJFSQycSNRYRZC8BczgZGx/9oADAMBAAIRAxEAPwDP4xjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjEzEfMzER/Wfj9vmf7fOMZTDmHWLp7wb9HIOQ1K9gkPsppIkrV16a3aHMVXSJlICZCkSnsLHmtITLDEZwvknqHwziM8FTkO/oa67ap2dhVoSSF79mjTPVm3DUjVpmrQsVRrBUQmVliV2kPiMh0nFOQ8iEjafV2bcMU8NaWyAI6sVix5+zDJO5CLI4RmCdl/BJJGUInkbdrXqsXytW0RwHR3FMp6a3sxtbUFE8GVmAttViFNOnU2Akciuo+w9rzWaliLOxRop/qLG/2/LuP8X47sqEvH+O1t3X3O5jiWvsDcYlDTgWSSBDFGGIW5NG81mOSuI0MbkbMb0fsaR9XLyXYQe3d2SU5YaTs8aRMgkSYTFFnnhYMC8sEYjgjZGk7LLluHFfXd1C1XD9nqN5wN/PeqW53m11fTfV8UR9wFlYRddWs8xUuwllSvrKaF7XZnW+3g67qesXYTeuKJOvvS/6nt7b4xul5VTXknIobkicem1MdNUtwSOYY6+5/SyrFBYrzJLIGrxsJKntrIY5SHO0uS/TvoH3ursafdjj3EI6Fe1ya/vppK6V2QRe+ujeSvOtz9VLL+lr+byubIlsCGSvCynndIPWf1RoIRq+vdHivG+YjsrGqsanemPDKuzMRllC7oNrSDc60PvQCwNultYOpRcFPtvoTch0fHxf6kedceFiL1Kfikts7uauKVktxl11kglNebWWqcO0rWp1kIrTpsoa0MK/p3m2cTWGc+XN/QHiNqwt30xtcg3PHGoV7q36MY3dilI5/q6u0p2W1lvxhLRGtLVSGa4GnKaomFEy9wfUVwmno9dvuQ1N3oqeykgU9NKOU0BMZn/y3DWb/AFrFEES5bgseDEgwo/UpgjJ3WesfFb2op7ixHstfVuOY4pP0y7at5LIsR/r9FLtKRUOyt373Zi8pOvsZRHyX0537bGxrdc9HYWKxXzjed9ROQy+QIqbyLW2OwwMJUoCZgEXyDIzV1q2q92tXuVXLsVrSE2a70nDFOQ9QOS1Rx8GtijBgFHwQFBR8Tm1opI5o45YnWSKVFkjkRg6OjqGR0ZSQyupDKw+CpBH5zBJEeJ3ikRo5I3aOSN1KujoxV0dT8q6sCrKfkMCD8jORnnnhjGMYxjGMYxjGMYxjGM63y2nsb+gv1dWchcYuPbiCEJcIlEnXEj7B5OGPAYORAimBMoic+W4JjXl9jv3fAmMDrsuO/EDy+3st49eX29/3dD5HvrGMTxmYgR+QDkhiFQ/DlghD+PgW78CHA+VPkBkGPINdzSxznlu8t7il1D117XlpH11X4PkVCnqtwFsdRW1t6VsW731NbZgmsSewWCkNlbIKKdPW7h3PLm9vc94LvLXqpsdi0XFd/HS2NN9vpOOVNj+ss1qtCxJFJBOsv6hJhFYkb3WLJGUYhbIdBe4rX4lx7Rfyi1wm9Ut/zWGeWkW0l25fpNVXYWL1UFXRY3jhg7hEkVWR5XQOnUvI9RludF0yp9ROk6aut3GodUZyTjm00d0KfLNJckWWqlqsVIrFa3SsSpx3qwE8VvNUn3+Y+fn8ewv8f1/IeMUeU0d5q6VfUcl1trUbEPstLZby6MVuOJ5jqJ5fe6rWe2p3ZFCsY3Ye70dq19pzKbinPGa5rtl78Wm29LY1jZ4/t4keCrZjnMywTVra+8pinLJI8SsiL2AtE+L8v6cc11Og9Quy6nbDp/f01KrwzZdBY2E0rBc6TBNqcj42zvNfd6rchA/eOvUteOnra+mp1tkstrX46Shx9eAJujudlxb+TbNItvxQQz0txvttPUgOr2+ik8fbt6dmjn/XUfaqrrGpQR+bpYUnO9txjlXG+Q7v0sh4hT5ml6efdUPVB4XtVa/ESS0+q3Uf3HWWqMrGWBali5NdmtStDXEccL5QznvV7rfy3ll27Z6bctbU4cblpsI0djZQXksw1uvBlbX2g3ly8YwBCKXUioxcK4KqQCwdLXKXOObbmjsdDa3k9ejNA9aVNLtJ5YupPCevMDWRZYXq+UPtSlI5AVZ5hEjE7o0Xp76V8c41UqRc30AucqRPerjYw1EUIS9y3IJ7cP8AKKdBGL+bSiwbBrCoWsSFWq1w/jfqf5xfp72eTXeiWpmvq69XW7/eP4PptdO3tpfuTpaSvs239qmpS7CYfh6292+3sIE1xRp9ikzxjhfqre0NXVva/wCgaaSxxycl3+yj1DoZZWa3ah11WT9U8lkhQa8EAabyHiJFLTpqDku59EeJx29VW1K+pewWS7atWNRr15FsLpo1mg1sM2wmp+zrFawXsSpHan1lKjCS0zWJTHmR3091FvRcO0Gru7CztHU9VQRN+5ERat+1USubTwiZ9tlohmwSvIpVLZCZ7j2i1TjtGTXaTU0ZrUl6WnrKNWS7KoWW28NdFksuoZwGncGYgsSvueBP25VDu7cd/c7W9FUjox29hbsR1IiDHWSSd2WBGH9yQgiNT2ewvYPRzumd3nV4xjGMYxjGMYxjGMYxjNjP9BfHft8xH+8TEx/fPFuwpI6BHRHZ6HYII7P7f/PY/wBwR8ZweiCD30QVPXY+GHXfx8/HfZzGK9Y3HkcF9QXN6X+Jd1xtFnk9vapRXY5dNlfa2Jv1WkKmqEBILHaCMDhkBBxJR2mfzv8A1D0OQen3rr6l1NLBPUjl5JsrtNoZpK0prXJhcglEajwcSQWo2jYAMxJfy+cuq+nPYpzD0h4zYk0Or301fSVqUkk0UYtRz0Iv0k0YmeJ3bt4GPSMn7J8ADrs/Ez22y0Wh3Oo6kbZ8AxS7Lz3F+WEsRKVLrLaZLAzgIrCKRCB7yRT2Es6/hHrH6p62pKr8u2Fr3Ipo469155ZtdNGe0JM/n/poq+BZGPRKopKAg45yCrqKm12us2PCKUMnhIa8S0YggaRV9x5ZVCeSDy95gXJJHa9N8ZSTrV1A5Dx2nL9RzvkdW+uHwXtXNbIAYlMTMwevlvgzxgTiGETPH9Xl5DMd7H68+sv6+OJtyXib5b3qKSkq4UkxOsfSs48SfM+H/cVBBOZ96b8A0O8te1suIaielI8RDGG6ZWUhW/K3E6A7P7gAt1+D2bJ9d1T6t8x24ayOqXI9WLXxD+QK2myVGmqe5E29iwKTgh8rAPBVaAmLFhqFSPhJkvMdp6x+oFCmtu5vLwPst/S15BUnuzOoVK0ckJSSPzb/ANyX5MUXmyr/AGq0lNp6XemHGdY1z/oHV3ZhEoi1Jr1na/YVT+mrB7fmsS+bB2kZv6dFL/nxBrj6V+L8r6l+oziWjDkuz5nrdZyHXrt7Gwm0MTXVbABsOqk5lYXuIolswoTKS9wj7ERx3PpDs9zzznfF6e2j2U9vb7SpL+nltTXRGPfV5ZQzKzCGNSiq7qzKrFB4+JI1b68XeK8A9GuQbJdBr+M7C5prC1a8TwvOZpKxYVktKsc7RRr5FEJZQex5eXflmIhECIxERERHaIiIiIj+IiI+IiI7REfxERGXlAADoAADsKB+AoJAA66HXXXXQA6/Gfn57JAJ776Xvv4PfQ777+e++++/3zdnOMYxjGMYxjGMYxjGMYxjGMxlvrHcaUHXJdwoJR7np5otnWb2ZC4s6+3b1cmZKNThCAprg4Q1cs9oAZ7giIjUj9XtF9P67ybBoo5KW64tp7bwyJG4eWrXta8GMv8AKN1QRfEdKSpY/JGXN/w89s//AKZvDDJ4tr+abClMquqOYLNWtdEYV0kikHlYdh78cyxebPGI2Jc2e+n/AF3JuG6rX3GX4FexqMdTNti5a7IMoX76q9mAGCP9UIlwkMARkJFMQRRh1d3VcnF+NNSyR0rkcVhI1igV5PEOCZolZnjUlXZI3UFgVfsdZI31avajkuwt00iV3o2o47IWKCuS6oX9tpIXlYlCVaT25PIsgUqEJ69b1hnbXxssQ1Uwip7+xrPUsferS2AJyPJpsBiicLpJEg0oiR8/HyjO1u6ejBIVaBjMGUU5I3YvBIfBERQFEbKx9yFhKrp+WChgjD7vT80KX6cTGQM9gRUZo3dmSb2zJ7cvtxIhSRYDGfeSWMeSkIH6OW+ctp7PhfEqOu06lWNvtGOft7gyVeFeSgaKysQDPcroWUClSYiPd9w4PzZ2zB6zazdcjuWNrJMmupKIq1RgVfzV/bkYIfEmR2Q+7OW6aMRqQO172jx25X5VyK9sLjNDSpJBHq4JfCf3unKM4iJURyyOvuO8jkMoQBCqlRJ99HN/3/VBOnaFabFWdjub7UqLzZNTW3WgTWONriEbjUDE+5Cx7xIAE9/KWX0tU5tj9QOolrRexqqehv2lgAUJ51Ks0VcMwBYkTyxSBQQFZV8CPuyEH8RKoaXCW2TTyyrZmqa+sJZB0qz2qxcRRRLHDF/TxSEjx82VenZwABlAx+0d/wB+0d8t8B7AP57APeUr/P7/AJ/f/Oa5zjGMYxjGMYxjGMYxjGMYxjIH/q6cCfyjqD0lciDD8jwrkuv9xUiJsbrNtVaCe5TAz3/Ldxgv3mZEZ/X8VT/xB3m1XNvTnZRRoRsuObSmWkXtDJrdtXlZSR89+1slKg/DdEL8g9WgfQDyqvpeMeoMdhl6o8l0F0B+yiLdo2U9wqPyO9aQ3z0oAJHZyKWNDuuF6z8ps7T02NXTaqkrYMWTGlXRVXTRCjgGQpzQJr2rIZKWicl4CMFDbjvIKuvfYVgPb/UxJPI1cTCMyv5sUhKEhQgCxnzACgeRIA+ZoJPFv9nPX09OtJ/MrDymesqMykli0tmwQzkMhLlPIMJPtKhj1kU/N+u3M9lY56ixzPd1uXarm+y12sqfcgpQ0I25VwTNUa0VbNKnSZKG9yhaWjXB8XW2/cVKfRcZ4ne0eruNqak1i5qYJ7VkzXTPPLNCJ3dPKZlhX3D7iKnt+Hl9qKoUCWGv9PLWu2HFpa+opTcQn49R2Mlg1qrSJeXWuPentmb3W2Fu8RPAFiiiPk6xeytcI17O+CNBXSHJbrrS30K7kbFtmbIV1MT7yktCPlcJSa0R+8j7ZkTGF4wUQa60trZsWakgS0thlNVIGSSSRH9twztH5P3IPuJbzI8WAI771Vob2y3EAn0OuSHwkmaasyQ1nlJld0KqnihYqQvZVevIHrpmYy/fRX4nWZ1H6lcjr2QuU6nFiVVeoZEJZe2FAQYUTEDHuViseEdpPx7yUxHjEz7+hysdjzPk2ynrPFY1PHxUcsp6SW5ciXpD0Pj2opVYHs/f8kH4EAv4jnIbknF+GaG1E8EtjdTWLEUje4/hWqzL7ZYEjwEjKe1+PMFQftIzI7/bLPfxlSP+cYxjGMYxjGMYxjGMYxjGMYxkVf1R681OEcA31SgF3ar2u50ut8pWMrdfr0rze0s/eSTrTIR8giSCO0yUDGVwfxFtPBc4nwHYSxgzRbja6+CYeJaM2KkNxkChSziUUwoB+0OA/TFfibv0QyLPy/lers2jW18msobG8PF2V46s8ldGKqf+xrRQt4t0spBHRLCBXfayj+GvXeoPPZPeERCXF217ab1VZC2UA+bK5iyRgkpTNRRVhiCWRTIyE1iaY2vvi1VGSdjDOlhS0qvXmiZYys080YiVmklQLCrysSy99H4y06nujSu1YuM8UWnp3kSKPkBkrz1LcrL5lolqszR+LeYlForP0C4XxBORl8+6bOtbLqAen5rwkONcq5Y/eJuxyFhbPW1bOzpbjYUz1y9c1VprK8KBxRfV92dSqSzSDXqCUfF+bmlpNXqp+NcrTaVdVBTKDVotV560DVI/Cw80UghkeJmYrCrxK3bKxUZJXjnO9JYj4vNery29noNB/JbEKpUlq27CU7dCpaez/MESsYDMw9l6rxolqbyV5mrNJXTYdUdD1BKK2u+23rlrrwttS0uvXrxc8fs4dDAIAm3EE/2WKU9TJYJrkJnw0vHwrbcc6NuOzQDyOxexFK01j2yPeEZLoStcsIDIpeOTpfFiQpbFtDqE1MD3KezhFRo0EkSN+rmYNExUn2GDIfbUovZdmij+4q0ZzJD+jL00v8M4r1U3GwJcFtXcbRXQtkOGovx2Fpi5aMQBSwSrF4r/AELgBiJL+LIPoV18g1XOdvKiq01vVUQwA8pPbWzMXZh2CfF4w3RPXx2fLKgv4hnMa3I+T8Mo1SzJTq7Wd5SjRe6xkq1wfbZiQoZJPEsAx8m76+O5u8n/AJXLjGMYxjGMYxjGMYxjGMYxjGMis+rs09R6ZtTy8CIY4t1O4q9hBMRIK2yb+omSmfgQk7AiUl+mZkYKJj4yGH1x6Btz6TayxEAZdVy/V2uyOzH+prXKQI/PXn7ngO+gT2PyBk2voG9u76329BKPt3/CeQVU76Ks9P8ASbEL0ej591wU6J+fz8d5Ac3nHHOrYbBOzin+TRrEAm7sg16gtpYo4KtVa5pQdgI8BILIoBpQMKnsM+VUlPW22mlupK1ezIe5PbkaEyGJPbWSRkMZLqB1GwYkL0fjodWqvxbZ8DWqK0L2NTYtzSS0qqWLQhdZFHv2q5idWik7Yl4WlETeaOF8z1HH1d1es4tfsXOO67TbWiiyyu5tFMqOkN2wofdfUgaybAHZWlijmm4vcWLVHEiDI2bxe5tbkL6/Zbe8r/Y8bSSvJFa/TQlo44prKNPDLFDLLFLDHKnQLo4kj77ktwjW6PbCnZ2elXWbP2y0MclOvHDP0FPmxiLRSuoHuRCYu0ZCe2EcL4+/6O0UUp/KXKuuCmIrs2azEhSrGoZ8QOxKSrR7Zd5UYD2OVmQA+JKYjruTW5ZmVGM11oXIUWZJZ+um79sOzPIEJDfHn4sT5dBvuHr52YDEdbq1alMzvFFLQjjDebKyskcAj8D4BUkRx5BXVTIgUEHLo+kW1u09PPIuStZDY2/Pr1Wu35nzp6jV6+snsUzPcYM2+Pbt8THeSLymbIfoi1stL0w29uZSJNjyeyxJB78a1OvGFBP7IzMoA+Pyeh2BlCv13BK3rBQ1Mae3/LeLUnlT4HU9+1YsOSoVR5soQuSB8/gAd5KzkzchRjGMYxjGMYxjGMYxjGMYxjGMjj+rPx9W99AHqKdKTdY43xbX8vpivy84scc3+suecQHyXtoNxSM9hkYLuQ9u8ah9dNFDyD0x5LUlQu8EVTYV/HvtZ6N2CWOQ9AlhGGdwvXRI6PwfiTX0ecibjX1G+mN3yRIbW6n1Voueg1faa+1VdVbtSrs/thCGB8vED5+MwP8Ag3XC9+P31cbnurqLYEf9SfckQn4DynxOR7RExHyPzM9/nKyLvAo0nR0jCNL2xC9hD2xHYBH+x/x+3/Gfo+2E+nuyUJA8A82UOCV7BI7+fE/BA7J+AOySD18CjW268hctvUZsgDlnuyxpQRNhneOwxJdxIe8zEl4ecQQwPl3jJIOCyCCMiNQVCkfYv9pHXTn4J+74/wCPn8/JzMqcesroJI7EZPj2pDgfHR+D32x6B6I76bvsgk/PGqdbtjbenX177l1feWAK99piUf1lI+Md47zP6p7R+xSP/bzLwOBEaWSGNpCvZYRopB/BPZ/J/b+0Edg9n4zrrMusj9yQmJpQH+/7Q/47Ld9dgEgDyBPbdfkhQfoNfSN4wXG/Qt0fY0XRZ5Enc8lsk/vBsLZbE4SQx5FEKiupcDIzMHPcpKe8ZP36dtPFpPS/UQxL4i5d2t9+x49tNaKAqD2SAka/v1+4Hzn5tfrZ3Y3f1G87dWVk1x1mrj6LEgVqamTyDKpVjJIT4n+0dDJMM3nkUMYxjGMYxjGMYxjGMYxjGMYxlKOunSXQ9eOj3Uro1ye3s9foepnDN/wvabHSuBG31tbe0W0/yWsY0Goi9r3Eq7WGyp1ZrECmypiGMAvg2mtr7fXXdZa8hXv1ZqsxQ9OEmQoWQ/sykhl/YsB38d53vGORXuJch0vJdYsL39Hs6ezqx2ELwSS1JllEcyj7jHIFMblGVwGLRsrhTmDH1m+gV6/vT1b5mvp9odD6nOE2QtfguSdPNrR0XMbNWTMKa97065PbpW6u4YofK2vj203ekWyR9jYyLIWEUOVeinIoLccmphg2lNGUK0Mqx2EVXPQeGYhj0OuhGZl6+WlH5y3bgf1x+mvIqOvi5Pe2HD9xDGosxbGrJZ1sk/StK9XZ0knQQf3CIXIqcxI6ZOvuMT1/6YP1Py2lpafQd6oWSTi/X/lta+3mJmfHtaG5NWYjvEeYuke0eXl27dvfD6a7xYokbWWAVUA/0tkkEk/PwnX7d/P4/wADvNrT/V96WRO8cHOdJNEigKU29FFkHj89iSRZFJPwoKAkfkA/Bvr9LP0C/qddW+UaJ/Nul/HfTnw6bdZm05b1g5Jqrm2pVANbLMa/p7xm1teQbLYfb+cVa19Wv1jbEAi7saoExy/rh9Hdzs/GOaL9FE56eSwyQhAQR2EVpJ3IH3FAi9jsFkPS5hHLvrw9MuOVpRq9ha5RsI4kaKtpIZGincgH2pNhZjgq14/MeMkqPPKACyVpulB+gj0L6U67of0h6c9JdXs7e6p9P+I6bi4bm9XRTt7dmsrCqxtH1K0kiod+z7tmKijaNUGBX998rlzJHcZ0FfjGh1WiqyyTQ6uolZZpAqvM/bSTTMqkhPdmeSRYwSI1ZYwWCdmnjnXLbnPOYcj5lsK0NO5yPa2dpNUgd5Ia3vv/AKcCSS/6kghhWONpXAaVlMjKpYqKsZ32YpjGMYxjGMYxjGMYxjGMYxjGMYxmkiJR2KIKP6TETH/E46H+2M8X26IiB9oPGI7QPjHjEf8Ar/p/t/tnHQ//AA//AF+P/P8AP+5x+T3+/XXf79f5/OeQQEI7AIjH9BiI/wDmc/jOSSfzm7GcYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMZtKZiO8R3+Y/47/M9v57R/H85wT1/wCfj/nH/n+f+AfwD/yfj/fLNbXqc5xxnZcqq8u6Hc3s19fuNzW0DeDafkvJYdrNLd2WrY/bvZoKy5tX7dALmq/Cq2FW9prH362QwF13402+s15Jltaq2yiWVIjUinnPhDI8TGUmJQDIyBofbDI8XlJ5D/TEu/ofR7jm4paibReo/HK9ifX62baR8m2On1QFzZVKd6OHXRx7SYiOvBaaC4uylqzQbGNacngXeWCpfSfr/p+p1LXd+O8n0u1ubnd6B1d2i3NnWV73H01SvtfuY16adGux7nVqytkVa7Fis6tarosrJUfdrtxDfVCIpo3eSWID2ZWQNAF9xml9tUQebFArlXDqysoYEDEOcemGw4dYtEbXS7GjBr9Zs0kTZ0Ibz19u836SFNe1p57ViKGOKa1JRE9T2545q008BEp//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAIBBAMAAAAAAAAAAAAAAAgJBwECBgoDBAX/xAAxEAABBAICAQMDAwMDBQAAAAADAQIEBQAGBxESCBMhFDFBFSJRCRZxIzKhQmGBkbH/xAAeAQEAAgIDAQEBAAAAAAAAAAAABwgGCQEEBQIDCv/EADYRAAICAgIBAwMBBwMDBQEAAAECAwQABQYREgcTIQgUMSIVIzJBUWFxkaHwJIHBCTNS0eHx/9oADAMBAAIRAxEAPwDv8YxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGM2PI0aIr1RqKvXkqoiIv47VVT7/j+c+WYKOz+P8gf7kgf9u+z+ACfjH+ASf6AEn+56HZ6H5J66A+T1m1CtV3iiO77676+E7+3z9vntOulVflP5znv4B6JB/n0R/kjvrsd/HY77/l3nyHU99EEggEAgkd/I7APfyOj1+QCCQM8uc59YxjGMYxjGMYxjGMYxjGMYxjGMYVUT5Vek/lc4JA/JA/zjIQesv1dQ/TXRa5AowUlvv+2XMCHV1t4aU2nq6sjZRSXew/p0mPYRaqYWEWngzguUQ7MiOL7jAvC+tX1J+vw9D+O6ixq6Wq3PJd5uKVSnqtldatBFqxJ57PbWfZkisexWgRkiaJj+9PuOrwxSobFfT16DW/Wncbr7ubYa7jPHdZYu7G9rYoZL9u2jwJFq9UlqKStPfjWwl2xXkKuaaME8WkVlgzzx6t+UbfR6Xbde5X4u0airbEkvaiElxrBXtkw0FURaGwJAkw3wjFdJVDzgRLl5gNUTQDITurXq56/+pe84nXucB5TwrX3EvO1hIb9WxJ5NEWpQ6l7VR6t2ORGsMXuCG6sqIViVT8WY9LPp/wCD0eTbDSbvhPOuUXblJaulEUEtYe7HP53p9rWhuRWFmiiEatFUeWgomYSvI8aFq5U5V9SPKN/I5+4z9TzNKuNHrtS4+vBSd8Soo9q9uZOn15Ha1cJK165FOWwUPvyK0TwzGKApHiEEYoS4p6y+te0gi3Fzm2r1Wz1EUOsmTe7yvq7Gylsy2bOvMOvBarfjjJkSZxHEoCxhRIhDJcB/T/0X4FrD6W819ELHI9fyq5vOXauavxhb230Kfa16duIbmg1fb62SqYDK0MFyYS12jKhGeYvY16XfXv6iN65Ej8bbtQaDcAqbIwNy2+JbtOeUOqhVqXkukSntB0VYjyyxHrq9kaeKRIWayPHiR/BrLS+n/r/653t3xenuOPcK3Wh2e4tx8k2FbYWo9rqNdWhSOe7QljtNqLUTSQiWnTiq2GkllFYqSwlSmvrb9LPpRxfiU3L+J7nmFOxsKS2OO8ftUJIYIGvW7ja6tsTsah2dljFE6W7/ANxVRIvtmaw7s4adfFXre0jkznnbuAP7I3rTNjoClXWZ25Qo1b/f1TDri2E/aaCsaYs5NV7jyo1fcF8/qzR3MmRqspoYpNsONerGj5Lyi3xevS2dSxFG0lG1eSONNpHCrtPNXhWWSda6hD7M7gib5DCJh45Wfm307cn4R6Ycb9UX5DxjkWm3AWPb1+PXJbsvE789n7eppt5aMENRd3IGSexRgYivDIsiS2FWUxTZRUVEVOvsi/fv75Kfwfx/4/8ABI/0JyvwIP4IP+P+D/cA/wBs1xnOMYxjGMYxjGMYxjGMYzHPK79zZol6ugu9vZnR0HCO0TJBYrSORh5QI5FRpjRhuUw2Ivm7wVGIr+mr43IDsxqNh+yCq7E1JxUdwWWOb2pBHIVALMEkKOUX9bqpCgkdZ7PHf2R+29ad6jy6lbUT3okf2jLAkiu8PufiMTKrR+4fhPIE9D5zrdcmelbkKuvLrlDkHaN05n3qZWMdsloaPILBPTVE+MlPEOsr6+Yt8I6q+O6riQgx66O8JgSzFYcOkv6gfTP1ojgksbyLkHPN5Ncs7fY8orR3L+s43rFV6EENaWd1u2rGwDIsmuED1tfUX3IVJUyZuN9P/Xng97W6biHBNPxr0z4rXuSRamkkkS3v2nsKU52ViWZFqxR6sJ8yNfnsvPsGUrNXjUxPDH1ac26bpnDkzi2q4MPTbpZBAXW9vWruQ2LSSZrIhJsAaw/I85UHIBKjyCvIyKRPYEdr0Rfy9O67bPgdDQX+D1dTapbBfe3OxpXk2ezkgYPZmjeaNFjsSfui0scjxIPcqxEBOjZn6f8A0x3vI/Uqrzm96oVthx7Xyum90C7HWGoEjge0KtwPZURU2JgsRSJEF94KZXrsjNnzeJLj0uUPHVdW8ccl8m7HynyBq8SPuWoXiUjq2gt0FHFPJGOKigSKgsScV6QyAlSD/SqNx3lExxU8H1s41w59Fx/b6mPe1+QaaylqaY1qg09dk7azC9mKSCzMlpUPsVxA5BHck69kt6PqDrfXDZ8zt3+ZcO4Tp+EcT3kzcc3usfYRWtvrnaaWlDPC2zupso56iKbEc0KQe8r+2UeREbKHHN/yx6VRcj8gcbceQt7vy1FXrN1axq+zuxHAJ0lmtSJlHUyG/V3UJxVhzLmtT6iXEiRYtmsn2Y5m/v6P+snMhZrnj2qM9XyNPYtboWLVfxnLKp96uD7V3uKQ15QTGwETzKzsWlwPmmj4B67ScP4jy/mk/EdSbNzc6zXTWauuarM/tybuKnsNhCoq6yz4LYq6y4zRV7NieagsKSSRZmX0hcO+pPetf1fkGy2na7zYZuwQdueTfQ2WsbjxptsZ8uLcxtekz40cNlo1oBYcp762fR2BJAYMU9DdxYTntsxqvS7kXOOKxwcY3HKOI8hqbGDbafkpaane026rBk+6rzWFPv622vtyW4IWhlKFooopva8miX6h/Ub0e4tvdxxWro+O0NHU0svGQvEpau747zXjzRwTa+1uIIpzPV5RTkNuuzzV9nABLZtQ7GjPYEZ7NvFLN3HqEIfIBxyr8a+2+YwQwulgYxiMkPEP4b7j/cUXuIh3B9t50a9ytTZNwmryOlxnT1eW7GLb8hr0KsG12cNZKabG7FAi2bv2kZaOt9zN5yiCNiiqwPSszKumPk7aN95ffjsMtfUPNI1SCWQymGNpHZYllJ8nEalV7K9d9hGZOusk5leeDjGMYxjGMYxjGMYxjGM2uXpFX+OlX/CKir/xnB/H+n9f6/2//n9fjOD8An+g7/0/5/8AWVj7Re2Gv7LsVaAqGDBvbSGoyowjGPBNK1WdPRzmub10qdoqfZfwuQBsp5ILtuJSkiRXLCMjhJPbdZHUoVPYDL0Vbo+Xwe/jJi10Amq1Ju3gklqV3RlaSIsGjQhx132rD5Ha/Pl2OgR3xk99UXSsfba9RWLwuV43S66Mdw3f7XOE4jCOG5Ub8vYqO76XtPtnQ+7WRfB6VNx2x7aqh8D0R5gHseSDrogA9D89ZkdS5vNcGWjyDaVIygHhXuSKHAUuI2HQDKGY/oJZfIkso7OcDuE42qZTJoePdSDM/cqHFUwwO7cioqoggNb07vxVE8UVe0VE7zGtvX0UqvFZ0musRuys8c1ZWib5+DIhXxPZJABBXyIGZVT5V6hWq4rHmnIGrkde2b8kqABgQvUhYEqx7I+SPEdEgL1shcj01aEix6uhqI6dPVsaFHjr32iI9PaQf7nKqojkRXKq9fKr2mOC9xLi1SUrquP6Ot5+60cNCtV8pCxZZGRApLsxLL0D189DPzlo8q3UsYbcbzZv149vdmdSoBJQDr8AE9KB/wDkpON5hblas3j5tmJGULuuka0jx9MRvSo1F7R3S/KfP5TpZc47M2xh104AEVlYHh6CxoEl8PjxQEKWD9BQOwD2eiCRFG8Vq8l2KSQyPXkkEqu7P+uMFSfJ/wAgBSPLrskBR/EMn01EaiNROkRERP8ACJ0n/CZPQ/A+Ov5Af2/l/tkWZrnOMYxjGMYxjGMYxjGMYxmi99fHX/n7ZwR2CB18jr5HY/7jOD/5H+xynj1sxt10Tfb/AHLSp8dIxn1NlbUM+KhYUxhq2NFkGiPCjJApZ5DO3q4rgI5ikQbTPe51CPqx3XNvTX7j1A4btasVOnPWm32k2NX3qVuGzXjrJNEYVWwbT2CoYCZFUD3vEyEl7ifT7V4fzLXwcP5br52seFmPVbinOYrNVlmknEUgdvbaCFPNgAvuFWCj9MaZEnQPUxWbQ+wq7OvHr1rXlUXtJMYd8lzBNWQUEQomymBB2xHFengi/ta9yoqZEPp79StznFGdbWrr8ftxxReEkLm9HbaYOsrojRI8Ii8R8sSAv5JOTLyv6dm45JWtULsm8oTkSH3Fav7KhiYo5JY2McxmIIVAFcuCf4fjPWn7mTb7qZUVG7QzyIIngPVJXN98IJDEeGeSYJyLJY1rv9MwCKFyuYNyNI1e8hn3PJOQWYtdS5pC49ueE06+uAtxwuPi1LaR1ZzEW6DrInQ8E8GYd51JOG67jNCLabLh1qGG1JHYS+18NBJKgHuVIqzq3s+6QFdZYmZT5ue1PR5bpvFz5LoIdh2G1uY0YXig3sHHWSf3fca850c8y/K9uanz0iDaqInz1Nd6U2Tbpjk3JdrvqFOsyxpZAiknsGUSKbUw9x3DMWPa+2FBCxgKPnxdxzyusdptFo9dpZ7coHcZawIYfDwdYYyVVfE/pHfkSCGZfI9LZVwkUQdl1mqVRjR7jqAXaeT2wK+VKcqI9VVyI0CKjv8ApXr8qmWj4TvYk5Pxrjzy16/3ElkVa6N1I/7P19mzJGsbN5tGREp7HfS9M7AAjK18t1Ij0252nU0jD2FllkB8ENu3DGD5gAFijuPEHoliB8DvJ3t+yf4T/wCZZxSCqkHsEAgj8EdfnIQ+f5/n+f8AnNc5xjGMYxjGMYxjGMYxjGMYxlfnq5po1tsI60q+3+qaxFcjka17kJGsJo3Fa1yKnkwahYvaeKIqKiq5firP1C6Ghy+G9w245hfdaGGxXmEazmGSC7Kv3KwuPCQo0Ucfi/a/q7PR6BnT0j2NjTBN1B04obR45U8in6Ja8DBOweyH7kYgEH9IPRHZym/dOBLgttc2FMCIGwQ0pPPoIWngyEjMY2SdzGmKpXiO6YNpGe647TIrfBzHa/ofTm5xfabOR5YUeC0JZ6kSS1aslezKpWeLuUe5JV6EZiPUbKzNGIQ7Br4cW9TIpIKMUxmeCWJmgkkCWpI7tdXKpIGA/RKC8kUgVnjZfbLN0xFPe/ck7zx3vrYtRvW01Wx13JMWnawFsRoSV8TZHQ3RpERw3wJ8JAvOIrCIsQTvZYYEh0hpktJrdfpqVKrepU6tW/LTqLNNXiYNOAkbuTJ2WdJPJnPbiNnYE9gDL563gNTk3HPd3HHNVs+NT8Ps7iN7NaiZ4L9nRyyQyJLGqWYbnuyRyRSxGOQ9S+3P4xsjXSRvU/Aq9lqtUHAPHlvmR0nT7NqhixohXuM5jWCGv+o0ZBRRq5ytUiKrn9o7qAuffUINXvJ9LrqxqR0NlBX2Fyw3ZeukitaWOH9LJ3EXCt15gMAPIN3mv/R/Tztdhx2xyexLFaglqWJ6dSu0fuSOTKa4kdSC3iB3JGvXSAdj9XZs39Gc603rknaNpntaOppqH6LXgdERypKK0Z5xBlawonyAE8Bo5qK8fuOZ+xU7zj6NOR7b1U9Zuc8x2/7qlxjRRUeP6/qUPWj20zo1+VJOhDNfoAKOwCys7AAfBrp9ROu1/E+FaDjlEq17YbJrO2m/SejVi8oqysrMsgimBkYqfFD4p2zeQWztPhET+ETNpH/P+dZTPNcYxjGMYxjGMYxjGMYxjGMYyDXrEhPizuPNkE5BtAW4p56q1yoWHLSDIE1Xp2g1DJC0iK5ERUc9qff5qj9SNaxrtn6dcxrTfbxavZ7HTbwkP1Y0u4jr+2na+Sqa2yhrTr7i/wABkKkEgNO3ovLDcr8u0E8fuG3Vo7Gke1Pt3KTzRuxQlWZXrTOp8T2PDtvgLkF7rcdX16cJNlMCFHmKJgjzBNaApzqZrYyPTza4njHIYjHp4tAJ5nP9tnaQXt+Tcbi5BBruQUgFn1S7NLdqCM1DGZ1iep7xmEbyxyLBI0LKyOoQkv0iCbdRodzZpNLqHkklr2zXMNeR/eUKA4lVAA4ib3fEv/Cr+SBe/nKM/Unwjc2/J851Jsejfpm2cks2mrtT7RDaNtfN2GJcGCatDHNPJJ8FVqNikYJxUGB6H+rAUPX3fK9RTq16Yt+L3mhjpSLCpjlknd4647RVCtIUYBQUAWMkHxHlmzn0t9X+OVuG6+XZVd0L3HOEyaHa62PXvI8k9LTzUElhtmZKpjBeKQSWUk8oZ2Key0MkTylFKo77eIVwyVSbFHsDCjQSUthGlHkKdI/tBkjGqn+pUUgMkgjMQoh9dNG1PNNdXrHrd9BzG/e2ENWwt+4AkdOyVFqWFxVjLmQeQs+5JGzrGvbp0jHx7Yxpxi+zcNerrpLlFKUH3Nr7qFxBWiCSys8Z/gSA+08adeHuN2G8iSmdiv0o65CoI1gKK3sw6OrZMM53kR8gpitcNyoiNX2PpPbRERERiMa1PFEzbR9JPB9fw1NtFWWR7s2i1DbS3OxexPdkmmjkrzP4IHNFqpgQgfph9uNAkaKp1Zeu27tbi1SknPUR2WyavEAAqQqsTI6j5bqb3y57PZbyZwGOTJy6+V7xjGMYxjGMYxjGMYxjGMYxjGRb9VUSJK06jHNYNwpGwpXqhHI1r0m1slqBRVe1VeZw0axGdk8kRWdOajkhX1vr625x3X63awwTU9ztU1EkNkgQzm5VmVa7EshLylGWJUb3WlC+2PIAiTfStrke8u2KDyR2aOua+rRKWkVa00RaQAIw6jVyWLdp4eQYEHrK0dy4Y1vkAdVEtI7pQqWSkmJHlFeaIRwxuGNssDke2YMSdqwZkezpz0cr0e5HVC5N6T6blkGii1167Vt8aWeOjKb07+7XkR1NO5KpEllYWjUL5OXToDtioc2c4x6i7Tjcuzk9qs0e28Fs+FaMFCHVmkrqR4V2YMxLIFDSE/CqehjSJ6dONTWkG5tdV1oux1IpERZVbHOCMwqHA8ZBxnORGyQuhxCCk9o6OYXmBUXpy9Djmihn14q7uTW3Nlq2lgkNJpfZgtJ71dHiFqMSKzwSFHc9lw7oxdHJPv7bme3iMy6mzs6+r2SpL4WypeeF+pPGV4ekkjD+RVSva/o/hb4Hydv4qp9bi1EzUKCopVqrQRC/pNVDhHOjyjMSV7oI7iIdqML4ncXycTxG57R95U36ieP3qzaLb6yKzBFodtEs4pROJrfvSpdjtoze60XsTQyKsrMsHkCR4+2AZS9OeUmxHs6W1tS2RsdeQDZsSMkRjiaBIGQsBJGEZFKOGZYgQpZvE5aH6FLs+z6rvF5IaVii2QVMNpSK9V+mhMnH7RyqvTDTnDGvkvbERV6VVy9P0C8luc34lz3lFyOSIHlMOprrJO0sn7imNlc8lLOIwtvYPHGAzFo0DlvIkZUP6oNVFouR8Z1kLRsG0Umwf2lVVIntGtAeh18mOt5sCFZXdlI6AyeGX/ysOMYxjGMYxjGMYxjGMYxjGMYyC/8AUZiTWelHkTZayetdaaOWg3KBKb21wz1VvHC9iERzfa94Mt41KvaM77VOl8krZ9WWjbdeh/K3isS07Onn0+8p3K7MlitYo7GCNZIJEIeOQLYbxkX5Ut38gdZZD6TJqZ9duHaq/TW/T5Mu04zbqydGOSHZ0JXPmjfpcK1ZSUYEsOwvTEZT9wZ6y4l8OnBucqtiy1gBBNIxyPV8gPmxZCeLlRzpCsT3URfgj3OTtqOTNXnD/qJ59rOaUtZymKnZ0RrLrZNuK/tTiasjstqZD4hprnYhs+35EyETIqL7nd9fU76Y4dfHsJuL17kq/eyWKyOX/wDblCO0J7AIjgHkIgR8KoQ9H9Ry1tnqH1ypn+8+HENXuVyyJIZQ45gMIio0r2uRykV72+LUcjFaqL+UVF93kv1FX+N7azDJxKLZULkjo0uvljqbKu0wb/qA581tO7IvgswT2yGYrCeg2E6b0L2e0pxx/fWK92MJ7UUsMk0EhQAmNSoX21APyR32AQej0Rh609Q8G/rCBgFYAMgo3eEgqEP9A5XIrSFRVTp7V6EXxY/2n+Xh4s7yonqB6pc45dDd00sJp6izYd0Inlm2Qrh+xRntfCMVlklYzRJGzL+7Hh7aESrpfRyTT2UkmjkkkhhKB4YykRsKF6eGEgMoUjzYfrHkPywPxb3/AE8HxJ/BsrYIKeMW73TYUANU7UY6ZIdSqqRF8Se4QL1a5Gp+1qdq5e1zb5/6dPGRofQWa+S4k5FzTkN/2nPmYoaRra2FWlCoHf8AcP2xVW/HZc+TDX59XIsVvVcaq10ZtZx3Uq7dkEyXxLebqNv1RqFlQeJYgklul+Bk9cvxlXsYxjGMYxjGMYxjGMYxjGMYxmCfU3xVL5v4B5Z4orzRY9lvOk3FHVHnEOKGG3KJkmpJLLGRxwx22MaN7xhsIomKpHCK1rhuwj1I4q/NuC8p4tE0KT7rT2alVrHmIFtjxmqNM0ZDrGtmKIsy+RUdkqwBUyJ6S82T059TOD83ljmlr8a5JrdnbjrLG9l6UUvt3VrpKPbkmNSWYRRyMiSP4oZI/ISL0ad24O9Unpu3WXQcn8Sci6wWHNOxtqDXra412cIJXtdLqdnoI82ln15+nOBJbID7rV/aJjkcialeXejnJOPWRDyDjGwgkrTK0s32n3NWQK4UTRWoRLXlDEB4TDJJ8BfMAgqP6JePer3o36qaSDY8S5zxnarYrL/0M+wqa/b1nlQOK1/VbCStdq24+/GSExSdMA3ZR42PEtz5NtZ7xwSyp7jlc33I7zy1kuL0jEaQBHIb3ERemMcz9vSI1GpmDbbj1SW1A8MJMkcKoUeIKyhfwGVlDB/6hkJc9E9nonKuNanWRB7PdQRjyIlVopIvAntgJexGoI7JIbojsklewM/8D8U+onmS2raLR+OeQNiGf2WKaLr9wCujj+GsNLt54IdTHjCYr1IQstrRMXzcrGJ27zqvo9yvllxanF+HbfcXrLn2nr0pI6aMzqXezdsRrVrw9n3HlkljRR5MCQCMx3nfqP6O+nGtt7Xk/M+Kap4xKwrTbSlb2M8n6m9qrrqU1i7JPIy9LGtcElSqkEE53HPR9wzdcCcAaFxxsr4JNlrIc6w2R9cYkmG27urA9jMAGSRESR9K0oopTiayOUwSOjtcFRlfuH9BPTu56XelnFuHbL7T9q0K9m1tvsnklqrsNlaluWIYppAPf+3LrC86KsczxtJCPaZGb+fH199RqXqt6tcv5rqo7cOm2dyvBporqRx2V1muqx0qryxxlvaMyxGdYnJkiWURykSKVWT2TJkOYxjGMYxjGMYxjGMYxjGMYxjGMZ4CxgGY8ZRMIInaEERqPC9FXtfMT0cN3a/K9sXtc+DGjBlZQyt/ErAMp7PZBUggg/3H+Os5VirBlPTK3krD4YMO/kMOmB+T+CP75xt2i6W831D9S1l5+0d7ztfp3F8kXtHe4sJX99/PfffaJ8/CZ0v2TrPLy/Z1AN/8vs63l/r7Xfz/AJz0xu9wsftDbbMRdde2NhdEY/wizhB/pnIQQosZjBRwDAEadMABjAgan/YAmsEn8/DPhelT5RM7ixoi+CKFT46RQFQdfPwqgKPn5PQ+SAfznmu7SO0kjF5GJLSOS8jE/HbSMS5PXx8sfjv+p79rP0z5xjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYza5VRO0Tv5T/ANd/K9fnpPx+c4J6/wCfj++P+f5/sD+Af7n4/rkNZXqc3jWbLaou3cHbvJj19xcxqAujU+y7Khqylm2VWQ9uclBGGsqfLgMmVX6KKwizqaR9eMiEYOOfGm31mvJMtrVW2USypEakU858IZHiYykxKAZGQND7YZHi8pPIfuxLP0Po9xzcUtRNovUfjlexPr9bNtI+TbHT6oC5sqlO9HDro49pMRHXgtNBcXZS1ZoNjGtOTwLvLBkvifn+n5OhV3eu7PS2sy5u6A0c1FcyayPO18MV08p7lK8MODHIcxo0YVk6NNSRGNGlRwSRuEne124hvqhEU0bvJLEB7MrIGgC+4zS+2qIPNigVyrh1ZWUMCBiHOPTDYcOsWiNrpdjRg1+s2aSJs6EN56+3eb7SFNe1p57ViKGOKa1JRE9T2545q008BEp//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAwEBAQAAAAAAAAAAAAcICQoBBQYCBAP/xAA0EAABBAICAQMCBQIEBwAAAAADAQIEBQAGBxESCBMhFDEVIiNBUQlhFhhxoSQyMzWBkfD/xAAeAQEAAgIDAQEBAAAAAAAAAAAABgcICQEEBQMCCv/EADERAAICAgIBAwMCBgICAwAAAAECAwQABQYREgcTIRQiMUFRCBUjMmFxgfAzkUKhwf/aAAwDAQACEQMRAD8A3+MYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGfxkSAxREOd7BBEx5SkI9gxjGNqvIQhCOYMY2Marnke5rGNRVc5E+c/LMqDyYgKPlmJAVQPyzEkAAfqe85VWdlVFZ2YhVVQWZmYgKqqAWZiSAAAST+BnTVm1a3df9nvqa1Xy8eqy1r56+XatVv/CSTdqjkcio3te2qiIqp1nUg2NC07R17lSd1HbJBarzuvfXXkkMruvZIA7UfJzuW9Zs6ABva3YUw3XibdKzVV/LoqUexFGjAqQwIYgqR+pAzvkci/Ze/wD77L/C/wBl+f7Z3Ox+P+j/AH+3/OdPoj8/H4/P+fwf9f5znOc4xjGMYxjGMYxjGMYxjGMYxjGO0/nHY/fGR9vO+Vmp100xDxPqYgmFK+UdwoUBpFagjWBRse9Ed32GGBHTZiojAjYx3vsg3Nuc6rhuqubC5YrIacYkmaeYx1qaOfFJrkkYd1DOQkVWNWtWWZViQKxkX39Bx67v7sNaCGcxyyeC+xH7k9hlAZo60ZKqzKD200hWvCR3M4A8Thb9SvJm+b5C3HWOYLlNr4LsrKs27UqHUCT9U26eld9WkzT9yBrc2vZs+vDeWvt6+uPJG4xYUgFz9eNoxj1x+pf8QfKdrxezR3fMtJrtByDf2bGrmqtDQ3ljRFZIYdDbpapmnevDIHlltGVZWDpFaeVon7zy9KfTzjen2ei2XEtTap861tCTV7mzuDDuNBWtztGyb/WWL8dn+WbB0ElJitZo4pJUm1ohLMxjPQd3p7rhjb9P454tt105kd4AW+pzxanN11kWXEKYCSociRdtr6yyZGJYyKKYA9ShWSlRwCHI2sON+pG1r8H5TrNJxbkuxpw0RtNVyTh29XW7ioyX66RtLHZjbZR69bcH1GzmqK71qyPYlRopkWSx+V8VvUfUDQbTlnLtZHuVtJ9TquR0Zd7r9mtmrKPJopUj1kly3VZ/o4dlEYb8wMHazqoTt+OvUT6g9JPdSdo5JmkqNXha2/QX399bbcW3h2Svj2tFuH11U1w5QZEbwr7OvmSZ8itYOeVxY3gpZTw3199VNdoddynZc22m6u1i7Pq9rG715KjWfp5K9uw8MfuNM0Rmo2a8ayTVY2sn3lfwHmcq9I/SnkNihV0fEoUs7WfZRcjXV1KunipS1SslPY6KGG6z+yYJ/G5VtpHWivlqY8WBAzK8I+pfiTm+rqmanvmnWW1mrWybfUYGwwTbBVywDT8RCWnK8Fm4EUqE7kNiOEg0RznIna5s+4J6i8Y59p6Gy0u41dqxZpV7NrX171eW7SkkiDSxWKyO0sTRuGDg+QQgqXJU5gH6gelPNvTrYXot9xvf09RFbkhoby5qrUGtvQs5+mdLoR6YklQjqL3w5YN4r0OhYXJ7lbYxjGMYxjGMYxjGMYxjGMZG3Llpt1Nx9stlowYpdni15C1iTQFkQ2FYiuUkoQOzfTs6T3iDYR4ROeZrHKz4inN7HIanFt1Z4oKh5BDSmk1v10Uk1T6hFZlM8cXchi6B8ygJVSWPSgkSbhtXQ3eTaeryaSzFo57kUWwenJHHaELuFb2GlHte78/0xIVVn6QkBj3ryXHqX9RSbVLhbvqFkOwtJB2unFgPna4+a5FchIdgA8inWJ5NVkFRdlRGdvRXd+Ojbm3KP4gtXyHabnk96xYv3pLDLHd1s2w0ks8tgCJNcsHvaqOtCVX6ecN0IljZ2ZQJc23630U9GH4/Ba4tyGk9OlDFIKi3RX3cdcf3LapvHHsvqj5qbIkIiP4Q9gKY53vddwFpc2TX6HX3uzXbisZaXpwzSQoJhKh5MYZzmJFkKqJHEd9c57Xlb7CBcn1LIRwrX7TZU9tsN7wTX7q/s0ljHJr0X1G0rweLKYtatqwYRZeRzIrGP3FhRoooUkYOJRx3iujtclp1m5bb0ui1Yikloa+CWnHcsqwKwSSRwqJVUESzRraKOqN7ryA+y0S6h6h+dePJUKZqOgTooYY5kuVU1lky0pUJJijhrEcOW+oJLcXshJIix5aNa1wXPM97fD2eD0ecelOxfd6rbXasEF0WpIdvUaGjZjliMVlbtdZLVMwPVkWuXeVTMzIWA9pVM+5L6SemfLqtivyLkMTvZMUCXp6f0mxCx2JbCTrNFFb8Pu8IoGSWAMX7EasoGWvicr6vt2tN33Rb4WuTjhDC3zg3cojYmwa5JV7YzrfjVr5rg3VOSS/wtdVgrNcjHtsqONGRtpBS4OY7Hj3O9Qd9wjfaijvUigq8h9P7N6vaSaD/AONniFSZo4LoSSTxOnQFgj+7TiXyasmPsvB95xXcvxnkemn2VFZGt8X9S9G0z6nZIU95qXMJYKpm1dlYPFqW8nEUayK1PYzSGOnYbvuFJMMe3wdt0zg7fd85qkGRsKxrdbHqmnaDHjS3+xav3a+aM8KPcNdGmWjK102OkICQnsEr1Q3vfw18b3XHXs8l4lwTlnIOdbmxH7StVfiHD+PUoLIETS7TZLOj/wAyaRJbppVpoRURYSlUsUk8r1UM1jj1rQcq9SOI8X9Oq0b+5WtbZ+Scn5LbeushgXi+r++afXFHhoNdkqn6hpJfdIYPmwXo8nZJeq0Ztvixomyur4zbocFV+hdYsE1sosJHdPbEMZHkjtexjmic1qsYqeKbhdY+wk19J9pFWh2LVK5vx05JJaiXfaX6kVZZVSSSv73mYWdEf2/HyHl2Bqp2a0E2V9NVJYm1a27A10ttEjtyUvcJrNZSNniSf2iolWN5E8wfFyM9Znfzo4xjGMYxjGMYxjGMYxjPgnXgqr9k6Ve/j4RUVfn/AE7Rf7fC/Gflj0O/x0VP/HkOx8/uPjr9fxg/hh+6sP8A2pH/AB/k/BH5BB+c1EvU3d7BxxzLyNrVNsdvSnqdsv47YjJZ/omPFZy/akCioRY7neK+CK9qq1yOaJqNTrNB3qByLnHAPUrmPGtfuL66zVcl21erSlnFqKERbKz5KsdgMo6DfClHC/hSAATv59DuP6HnPprxHd7PTUL38w0Orla4IUW04anCDHJKgSYD4LdRuvl9rOC69iDKbnfky3K+JLvD20hv6flaghSWK5PhpWNWKMbWIqKqtcztPL/q/dFuLhnI+VbbUra2GwqWYJlYtHLrqTL2QSVZEronmAg8WVe2AIYlmLZO916T8K1jeVSlJSHwwFGxahYgqHbpvqHJZu+n6IV+vlQfg87Pyfv2skBNkhpQPABFZPg1GsyZoA9L4NYSQ33Gsavao0b/ACar1VBqqdJ43K+b7KgqpWTV2R7oVIbeogEfu9AFw308yl/H4C+C+Y6Pkp+c6+q9P+PbaN4Pqt2YZJ2L157+4jhZgQAWEU6p34n7W8D5fPbAj5iIHql3D8SWBG2bbAS5Jh/TNq3wIcNJDfyNO8ToUhBKjlQirELHL5ohBlY782Q1uYc1ij+soTabWKpWV/pqNRPFVUeCxFqitGVIJUxyIFclh93xkyf0S4x9Msl2lQnijgKubn1liV4QO3iLizD5qUAjC2EnQRf0nVkHgclfpU2bkLkLftZoNi2m2uGWllQxnRUmz/phSJlhGitAwZpJhi7V/wCr7atEbwf5tf2qLe/oTyXlPOOTUId1udxehsWacaVpr08sABsJGsZRpGjVAoLlU9tSB9yn5Bw99e+LcQ4Xw7ebPT8f12tsUamwnhs/Tw/Ut7cEs5l81hjkfyP9NTN7jL7gCMoIzaTb10nX2+VT/RVVU/8AHX2/jNsg/f8Ack/77/X5/X980x9dADoDoAdAdAdADoD9AOvgftnOc4xjGMYxjGMYxjGMYxjGcOTtqon7p1/H+6Zwf+//AL/9Y/f/AEevz+f076IPX79Hv9s1jf6kXGTQ+q7azR65o4ux12v3gCBRRoSXIpIbLF7kX9N75NmKWd7k8OymVV8nZqM/i64DEvqvub1OssT7mvR2QkgBhLTy0oVuP4kyKzzWY5JGYeLMzuGIB7O6b+CznbL6F6enPdJm0mw22slEpEnjCL801Q9qqOiwVJoYEADAqgHYPeUu1jRjVVlJmpAf9MMZBS2GB5INpEa9XI9idfld8ov5ft0nar8VnwUWodY2u6sxNWZXRmUgr4of/J8+HRHfTAt8kjv5+clt/wAlr3oK8QsQtM7BofCVUdwT9qqjHzPl+PDroEdeOQr6gePJstkafTneNshqmaMaEcx7VTv5XtFZ111274666f8APbvvyPbRRRmC3VaUlevNUUSEj57ZQOh2eiCB+nTZMfT7eQj3op/DuFvbf3H8W8uyCAB2CT0Px+SB+oAzw3C3GMubsQmzIwEbAYws07lR6ie5fBOkcny9X/AevlHNXy/L8LV1+KbbH6GBplSWRFkHgB7cTMpJTvrp+vFQAR5FmUkhskXNeTVqmqZ4y5aclYE8yPcZPlumQ/aiDpnY9ny8VH3dHNkv0E8L1FZtNNspq9HNhCPMhqdqFR52wjIA6OTtqujHe0ok7cgCsGqdOa3rYZ/CpwKPU3Kd6xB4/TRyPX9wDqTwhkeOYP107Rsy9BevbfxPYIBzUH/Fl6jXL+jv6NLXzYljgsiEhCIzYQywMD5MFliiZH7UGZCwJ68gczafZOvt0nWZ+j4A/wBD/vxmuz/nv/Pz8/5+fn/385znOMYxjGMYxjGMYxjGMYxjGMxA/wBRbjM2x7fW3UVjGOnaRHr3FRFQyyoFxOMN4XIiqhPbOBiuaqKjWMaq9fKYa/xOcKl3lytsYETs6T6cuAfdE8N0vF7Z+ArgFeyCe1AXrrvM5f4T+cxaHX2tbO7ssXIHtiMEGP2LNGtFIsqklSrNEfEMhUsSeiRlIdL45vUpZK2dWMk18aUFJjwheWSoowBQ2TVUfuEYbwOpzDcwj3ka97umqrqH0/EJl10M1yvIltU9qUxI/wDW8g3irxgAMy/2hvkdfb+DmQm85bBHvGbT3VSATe9Asko8oCCAfbcksFY9v4js+YJJ6zChylz1yFN2CtgMuqAxh8rRdFfqn4dFFNbVlvi6+Y7QiGxXIGOVARjq9rPqWjcUZidsz3t9wDjdjTzzmvILb1ZioM5B9+ONZE+wqT7bOoUoOkb8E9j4zx47wuOnFI6666uuTiK8oXeyW3KiydULzo8zIYTZExklaLtkjhPtggBGOTbgThqysi29g6pYjpcCJL90iuERpWEf4BUTW9OcKMX21arkRrv1SeT0TKR4pwhb+4uKYWLVq7uiqHVQ6+A8vx0xPk5676P3E/29jHj1K9TTTo6eJZyxWexE/uNFJ5QTKzqjdBGQjwjCuV+FAHz5HNgr0nar+B0EUJBOGtdVOita7tfJJD4yte5V+z0GJzVROvh3fSdrmxz0Z1Ao6qohRo5KtB4R5dnzErRES9EAr2FIAbot0fyAM1X+vG7O13M8ofzW7dFhuiOkkiWcMvQPwGMob/PWXL+2XtmPmMYxjGMYxjGMYxjGMYxjGMYyl/q7qI8sejzziVzGS7Gve5qdqinbFOzzREVXMagiOVPlURVVqKvwtYeo+vhuJqZZl7Ec80Q+3yB9xA3TL+Co8Sfn8EfAJIy4fSTZT0rG9hhIHuVIJyCVHfsu4JUt303TL+PyPj4+TlYIcKvgjRkosaOErwxQkK5g2FNI7QIRo5U8zFVFaJjeyP8AH4avS5Vf0Ch2QKq+DKqhvnpj+PFfwP3H2/Hf5H4y2/5jNJ4yAs7Es7ADpiB2W+R0fEDssASPgkfAzXa5f9HfLsTncsyJxjKPV/5hG7qzcO6dtGLQU3WPsTZ5Lp9o18cYawhiyoRYyGRqFA9WnaJkiIbrW20SSq9ImaS3IwmCdo1d3Vl/qfIYePZKEBh8ggE9Ha3w/wBfvTuf09hlm5vVgkX0nbQTcfla0t6Xk8XGm1TwjWfSdWJPrESKK2k7QdeEqx+2TPDn74ur4jDsSviglCOUA1JHahBEfId+QiEGqi9lrFdJIZyoz2GKo1e97GO7PGtLBWmLxQKzyzxRJ7MYYMZH8GYlR0IIyGeSb+0IjMCT4BtZXKdtZnR3tWvbWKKSwTIwARYk7VUR2DmVj1FHGD5s7jo+ILDKNxdDFFrjoNERWjjDerW9IrvFz3L9ulVUVvfSqifCft8ZO8VrrDXlKdEeMSAgAEgKSrHrodsD30O+vx8fjMSOV2pLNtGcn7mlYDyLgEFVI8iez4HtfIgeZ7I+PjJTyWZFMYxjGMYxjGMYxjGMYxjGMYxlafU66pDp1JJuJEeIAezRIwDyiMEP6qbEkhjCQhFRqPKVEaxqqnmvSIvfWQLn9uhT1tGa/Zhqxts4a0cs7rHGbE8biKL3GIVXl68Yw3Xk/wBoHZXysD05i2c+5tw6qrPbn/lliaWGurSS/SwNG9iX20+9lhQF5CAQE7Pf56qAWv1y5E2vumgNFUwjhQxjxEYcQzjGaPJinBIGRAyDjY8BmvQRXp2ir2lTybnTxXTVu20qu4X23sBYoJB34x+3P5CJ3ZQOgrDpT23j+MtmKPZCETVopXYeRljj6kfpmV2LxOOx4OoJ7XtXUFR38iE944P0WNONcdXLo7a2XDJTivJZa2a6VIgymGSIZ8juS19eII0YigUBDBKB4nNazxeU3ammo2L8nnZSCvJLXrQyL71qYKxhgrjt3Msz+MSEJ4oXBI/XJDpNtsLPt10RInaZS80kRjEUaMfcYkBQFj78x323kGbvssx7XhH/AAnxfFnxFqomoRJN1XkSISfImORtj7dfXGlGlSZDB+4VGxmMjoGKLxaFBMRiK2quH+pl3T6/Z7D1I1C8ReTkuq1uo1RcW562t3fjW1E+yswv07zWlMVh0i9utKTG6DrtfW5Rp7vIJaycemm3flr7s9i9HA0UT2Nf5zbBK8aIrD2YepSrSOzKxYdA9Zlt47eN9ORWL25pmsevx/zIAT+l/uiET4/ZF6666zNzi9uOzVmVe/chljin+e+pvpoZXQ/kFlWRQ3THxPS/HyBiZv0MdpAewGjZ1B/Hi0jgeJHwR9vRIJ+4H7jnv8lGeFjGMYxjGMYxjGMYxjGMYxjGMoB/U3qGz/R9yPbEmurwafP0/b5Usfn7seFU7PXhmnD7atepQxpzzNRq9r7fSfKpmOn8VWife+ivJ4o55qza6zo9x71fv6hBR2tYOYApUtJ4Snodr+CSygdrlB/BzsTQ/iB4XXWslqTeRbzj8cEoQwyS7HT22ijlLqwCSyVxF30fEv2B+ua93CfJHMJwPW1uW2NFQWUisrJ9lauKZwwRUeKMhXlej0QThTIzE9wxGke0RHjaTw0+Tz80s2aFqnvb8tXjzSeb7e6600ih85TDXMkpEsiKgaOFCznoJF5f2Ha96g8P9NqltxS1wq7Xc1IblutRoeIWSaULJIUSJSD5GWtJIwEEfSiXwkIJlOz9Tu46fslSPd4036OeIbnT7LoYWQRnA5WQfcULCPRrTtcXvojfacx/TSeM41vq3y2vtNbttm1q8rRVopTso5FlOrjvQvKadaYwtFI8EMqGUqHcSQFJSpJFeWPQXjXLdDfj4tPUS1VeTqpSIaRrjw2Ig1oL7rpH5msFV+iriVHUsB3Lepc9adyBImguJAWRbSMsOO2FLHHJJifVJKgjfFe5xWSpEkMYTTvL3HTyQTEQqozwuW+vL80v8j1HItHfRdrCNJqHoRtBQlqUtimz1yTwdvN9bbmq04mtyzE1QxEKx++zpBrPonvuA6+l/Kklllozi/M9uBrPsW5YHr3yLIRUFaCOWdlqiMe90PeLGJfPPX6dJw7jjKqv2PV/47MtZ7vIrjEY4Uta5Wleqr+p3Cc9Wo5yN8/lznK5c3B/w9K83pnqNrM7Pc3li9tL8kk72HluNKtSdmkf5HjLUcqg7VFcdfLMTrD9V6ra7m2x1TDr+WQUqigRiNFVq4tjwUdAIRaAUhUDePQUIqZO+Xhlc4xjGMYxjGMYxjGMYxjGMYxjIA9VHE8znL078w8TVqRltN60O9oqlJhnxoq25QJJqUkSR9ujhWyixWvP05oUX3CNcJr2rDvUDjsnLOFcm45CsbT7bT3KlZZnMcRtsnuVBJIv3RobMcQaQBvbB9wqVU5ZHpBzWP059T+Cc3m976bjXJ9VtLn08STT/RQz+F32YpPskl+lkmKISPNulBDFc0etz4d9UXp92Q9Fybxxyjpzq8rhpJLTXEikO2O54mzYF5UCmUcyE5rF+lkMlNeSP4q1qNXrNTlv0y3XE9nLW5VxrZaxEdmk96hZmoyyOWT3I7NdJakqsw7EsTyIwYN5gEnP6H9B6pekvqXqotnwzlvD9/8AUr/4vrqFXcwe6qs1e3rdjJX2MNhPIiaMxOC57BYjIb3vmfcbJ4qufcR7UARqKMOzL7kyKR7k7Kx6kSWpBong1pUerR+QvBWdpkc2mk09uUSVCypB5IqxAr2AACheRQy/jpVLAKCQvR/FicY4rqKwe7BSFR5AJJparKtedQT8MAvtGMt8sUPy3TEggdW59J/FHPPL+yVEfTtN3W6dIkRyOn1+uWoq4AxoiMOa7nAi1kWMJv6hCLL8GN7J2rFTqKp6U8p5jsq2s4vw7dbiaace3NWpulSsA6u0895miq11X+4yTTggdv8A3ADID6yeo3pNwDjt65yTlPGKRjieIUJttVmu2HkUu8dfWV5LF2xK3R8ESEBivi5BBI3TuAdAncXcO8faJaKFbTXNdjQrNY53yRLYkKeZOVJBE8juSRJe15kVWEe1zhK4Sscu6H0s4nPwb094jxS0sKWtLpKlS2teVp4Vt/1JrIjmcK0qiaZ1D+IUhQI1WMKo/nM9TuU1+b+oHLOV1BKtXd7mzbqrNEkDrVASCsDBH9sQEEKBU/Kr15ff5ZMOWBkFxjGMYxjGMYxjGMYxjGMYxjGMYz8p4USUN4ZABHARFQkczGljvRyqq+YCI4LlVVVe1Z32v3z5tFG4KugdGHTI48kYfnoo3aH5/wAd/p+PjP0jvGwdGZHU9h0Yo4P4781Kv/r7vjodZ5d/HWgkL779J1F5++/efrNE4vl+zvcdXq/tP58u/wDbOidNqCfL+V67yJ7LfQ1PIn4/Lez2fkd/n8k5668i36p7a7vcCMDxEY2mwEYH7BBZCgf466P6956eLAhQgsjw4seLHEnQwRgjjgYnXXTQBaMSIifZEZ8dJ110nXdjhiiQRxRpHGPxHGojT9PnwQKnfwOj49j9Os8qWWSeQyzSPLKxJaSR2kkbv89ySFnPf7eXWfrz6588YxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGMYxjGM+XKqJ2id/Kf+u/lev36T9v3zgnr/AL+P84/7/v8AwD+Af8n4/fKayvU5vGs2W1Rdu4O3eTHr7i5jUBdGp9l2VDVlLNsqsh7c5KCMNZU+XAZMqvwUVhFnU0j68ZEIwcc8abfWa8ky2tVbZRLKkRqRTznwhkeJjKTEoBkZA0PthkeLyk8h/TEt/Q+j3HNxS1E2i9R+OV7E+v1s20j5NsdPqgLmyqU70cOujj2kxEdeC00FxdlLVmg2Ma05PAu8sEl8T8/0/J0Ku713Z6W1mXN3QGjmormTWR52vhiunlPcpXhhwY5DmNGjCsnRpqSIxo0qOCSNwk72u3EN9UIimjd5JYgPZlZA0AX3GaX21RB5sUCuVcOrKyhgQIhzj0w2HDrFoja6XY0YNfrNmkibOhDeevt3m+khTXtaee1YihjimtSURPU9ueOatNPARKf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAMBAAMBAAAAAAAAAAAAAAUGBwQBAgMI/8QANhAAAQQCAQIEBAQFAwUAAAAAAQACAwQFESEGEhMxQVEUImFxBzKBoSNCUpHRFTPBNGJjseH/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAgMEAQUG/8QAIBEBAQACAwEAAgMAAAAAAAAAAAECEQMhMQQSQSJxwf/aAAwDAQACEQMRAD8A/VKIiAiIgIvnYnirQPmsSsihYO573uDWtHuSfJfLH36mSqts4+1Baru/LLBIHtP2I4QdKLksZOhWtx1bN2tFZkaXshkla17mjzIBOyB7pQylDI9/+n3qtrs/N4ErZO376KDrRc1a/TtSvjrWoJpIyQ9scjXFpHmCAeF0oCIiAiIgIiICIiAoLqzq3C9J1GWM7dbWbISI2hpe95Hs1oJKnV+cfx7w+ZyOUtSsry3K+muY2Bu5a5jGwGj2cee4e54Suz1DfiX+MF7NxR42OrHFhbR8Y2IGudK0MOyw7+Vx3o+XH10qHh+rMh0tHWjxmRlpxS2o7VXIiz3tmjdw5k0TPldrRBGu5vIPoVFWJZ3RSS5SpPQd3Fskkzg17vEaQQ5ugdHzGgD27916wYyrUyzHvxuqDWfwon/7kvmCR28fNr6nyUPU/Onr1Jnb3VF2TPXrMpyNVwmkkLS155AGnDhkQAHboc93qTtd1F8mOzmUZ0+/vrZEMAsx3PhxKT/EdFvfYQTsDgHjgA8KOv5W5mYhBnII6depCawfL+eSEbLWO/qc1wADuPYgkBV3KZGrmPhq9aF+OxNX531hIHsa92h3Bx0T3HW/PXOk0b600foLMZXpuxBbe+ljs+xzpqslqJ270e3CWtKWnbyCQW70dt0CdgLVuhvxlzc9l8HUkVKa2yMSMrVdRmdh5cWvJLfEaOfDJG279fP84wZOSxffUNeCRk0LY4ZrOpHNmHzBwcTxt22kDQIPPI2rT0VDNWzGSbYZXMUzXmfClr4fDeBtkgPpoHhzTsb+qf071+37NwnVuBzmQt0cTlqdu5UOpoYpAXN/yPqNhTnqsF6Hxdy71kzOYGjJBSvNjlmtSRhpjLRpzHB7QT3j1byfzbPkt5YCGgE7OvNSl2rs08oiLrgiIgIiICr/AFnBGcZ8SYo3zQncZdxzo6G/TnSsCjuoanxuGtQAbLm7H6crlGPGGnkpmT9QUaUsssDbjKTog6Zrm8Hn10fVS9XpTpnJYv8A1Gxj/na3tY0yOaRryAUhJjK9y3Qvmx4clUhpJ4DtehXRUsTZltuGxXNUVy7tdo/uqZyZb1VtwnrIcr0FhbVq3l7VC3BJCAIO601jZX60OHDR99lQeO/Djp86dn8TZpwRMdqaS4wNk27fJGiTzwfZaR1Vj8PnsQKli1Za3HAvc8fKda549Qsz6zsYzP4mJtW9JTix4/JKwkObrQ0PU8KF5srdaSnFjre07luk+jqvT8bsfiqcjdtb3WZSO9v33s/3Vu6OyOExeOreLVxcVpzfCj+GrdzmsHkO53Oh99LPelWY/KYeCCEvnrwHtPiDR7hzvStHS1MZfOSPFQshqt7I2713EeQScmWXVSuGM7bh0uZHskdL3nR4LzyR9PYKwKH6ZjkZSBn/AN3WiphacfO2e+iIi64IiICIiAvDhtpHuvKIKPbx8N2GaF/DXnkexHquzsuxtjFcNfG1oaR6n77X1mZ4dyw3/wAhXTXPBWW9ZL53GcdYzUsRYf34azMLjeyUw6c07/l1vzWcdQ0qlbKux8GClNedjRI7nkefB3oaWz9RSOrMll3po2eOVQcrYM8XiRl3YeRvj9lly5NVow49zanPrS4u1WhwFPw6Yd3SnuBLzv8AmJ58lqnS7fishDPqNkcY4YNnlZ9Ce5+t+fmtI6IjAa06UsOS2wz45JtqND/pmroXxqDVaP7L7L0Z4wUREXQREQEREBERBAZNnbfkP9Wj+y9IHDnRXTmm6sMd7t/5UW8uhPiNGx/MPosvJ1V+HcZ9+Oc5h6Qe8EgG1CHAb5bskj9llODswv6msiidVxUJIBJBPfoH76A/Xa1/8YKFvK9KduLhdYmbZhl7WDZ7Wk7OvXWwsvwmNvDNW7FqlNUh+FETTJF4Z7i4E8f3/TSx5ft9H8uWE+Gzfff+fp20pRNZIad6OitZ6MYREzhZniKMFWbUTACTsk8krW+k4x2x/VS4tXLp5HPf4r9EO2Jg9gF7IOAi9R5giIgIiICIiAiIgjc235InexIUP4jO/sLm9+t9u+dKeyze6oT/AEuBVd8CMTulDR3uGiVm5/V3F4hLeIMTZBDdssY53cGgjQ5J/XzVJztJzGAz2pHOYSe/y9/8rS7w/hlULqSubEb2AkE7WHOtfH2qkF+GHlj+8R6BJ5K1zoXvljrGQfMdE/8AtYvjOm5m2iHSjsLv2W69EsAlaB5Nb/wrOHX5zSX0amHS5oiL03mCIiAiIgIiICIiD5Wm91aQf9pVdeNeis7gHAg+R4ULbpTMJLG+Iz015qjmxtnS3jslQ1sgsO9j9FVspHGSSXfsVarhDQQ9r2n6hVbKSxN3syH6Bm153JjWzjqMrsiEw13E79tLQ+hq/hRSE+u3f3WfY+vkL1prMdirUuzzJI3sYPuT/lax09j5MfSDbDmundru7fIfQK/5OPKZbsQ+nOfjraUREXosIiIgIiICIiAiIgIiIPBaD5gH7rwI2A7DG7+yIg9kREBERAXBlPjO6E042yN2fEBk7D9NH/4iJUsbq71t4xb7Uu32674HcjRkDh5+iIi5DOy5XU0//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAIBBQEBAAAAAAAAAAAAAAcJCAIEBQYKAQP/xAA3EAACAgEDAwIEBAQEBwAAAAABAgMEBQAGEQcSIQgTFCIxQQkVI1FhcZGhJDJCUhYlM2KBkrH/xAAdAQEAAgMBAQEBAAAAAAAAAAAABQYDBAcBCAIJ/8QANBEAAgIBAwIFAgQFBQEBAAAAAQIDEQAEEiEFMQYTIkFRMmEHFHGBI0JSsfBikaHB0UPx/9oADAMBAAIRAxEAPwD38aYxpjGmMaYxpjGmMaYxpjGmMaYxpjGmMaYxpjGmMaYxpjGmMaYxpjNDyRxjukdI1/3OwQf1Ygf30xnAWd4bTp3K+Ot7o29VyFyVYKlCxmsbDdtTOSFhr1ZLKzzSMQQEjRmPB8eDrA2q0yOkb6iBJHYIkbyxq7ueyKpa2Y+wAJzOmm1MiPJHp53jjBaSRIZGjjUCyzuqlUAHJLEDOwg8gEffWfMGfdMY0xjTGNMY0xjTGNMY0xjTGNMY0xkPdQusmD2DYipSUbmXuu6RyRUniAidwpWBYx7t25bIZW+Fo052UECaSFiAY3VdRXTyrCsTzOSAxUqqR2L9TEli1c7VUnsLs5I6Xp7amJ5WmSFFBKB1Zmkr+kABQpPAZmAJ4F0SIaubqt5i1Hn8xdekMi7RVMNcYS5M1FYjthxNJrQoQQN2rKB8VYZ2ZrMyzMAMR1JUmR5QBIfTG31BRwQqLuPpJAb0k80x4vMi6XcNiRFhGAXdTS2RuBd22qLA3D1AUPSKu9EWP218dV3I2FgiycZ9qBp8dGt9XkA9xK8xheVpZfm9r2mjmJBd1VCwOF00TONYYEEwpVZ4R5tn+hiC1tZ27aY88dxmYS6xI20omf8ALkl3jSU+UwXs0ighaHG4NwPvQzcWOqnU8Tx0cLjcXi6WJmEKncMDW7+YUEMqWRWtLHjIDGVSNIXnuqrRtKwfmsmpJretSyOukiggigIVTrFYvqj9RsIw8pCpARk3NdFv6Btro+jIgbUSy6iSUFm/KMiR6f29O9T5rjuwO2OwVB/+mc9u71L0tl0MTZy+2J1ORjELWlyaHHrko4w9ilXdKktqdwn6sHuRQNND3so7oZgmDrPitOiJA+r0TMky15sc4MYmUbngSomkZwvqQFF3qb42vtydK8Ly9ZedNHqlZ4GB8poiJTAxAjma5FjVSx2vTtsNXwynO6bd6p5bOw1Lf5JVgimjSxLRlnnr31rSLyJEklDQCThlKQ2RB7nzAvEeDqW6d1Q6/TxzGB9O0irIYZrRwjcjuTRPFK+y75AyH1nTjpJ5YfNSZUJUSRHcCykg37UCDZUsOwBJOS1TzWNumNIrMaTyorrVmZYrHn6gRsf1CpBDGIyLyPDEcEzAIYWD/wAg/wBsjiCpIIIokcj4/XOV17nmNMY0xjTGNMY0xjTGY2dcd/57bTTY3EmZH/Kluww1x22LiSPNDJLE31mFWWNRJDH3FQVLRuZE409fNLBpZpYInmkRSRHGfWeLO0USaHJAG6gdoJObGkijm1EUc0iwxswDSMaVR/qNgKD2BYhQSCSBZzEXbO6MdXTIZi9FYu5Miazcyt+dshbmZpe9lmZytqr3ySLElJIFhjjjWONFCjmp6XqGnCvJIWeX1M7uS0lltx3odsiFia8soSFAANBatmp0MzPHFHtWMhY40QCNAAoC7W9UMgVQSZA4YtzVZJG2cXF7ku5Ju+aS4BN2Su0iyiTgsvL936ZZFMcEfEcICsqB/nMto4Fo6piWMo3gP6id1e/NKaFJwoq6ujkXq9Q/p0yceUShKgLRU9iB2IBNsfU1kWMljE7voyqTXEcd6iyzGCVELxOD2qzoQA0bgtEGIUSIzxhwWOtttXEQwFbovVsbigvpBHelPIvv7A3wNUaSQABwTHJwH5PsCbN8FQQdpJINcfEQ723XNMmQE1e9hcnNMpD44IxhaoJJa9yFmLQvXMQVoV7m8HweVOtLXdRR49x36aQ/TtKkxmNbDg8KRwCp7lbNA8Df0WiWKQC49RGDbB7VHEhVXjIrdYsgkf8AYORPjt7dQNz7czW191be2ruG0lmrJjMzJDbwhlkputzH5C3j68tmHHZeCZFmpz1Z6kQZnSeNoJpO+tPrtX1HR6jQa7S6LVNuheOd0l0yiWFlkhldF8xYtQjqHjZHVRZDKULE2ZNL07pmt02u0Os1ukQrKs0KmLVEJKDFLEsj+W02ndWKSq6uSACjeYqgczFuTrj20LW34enMliKaOHKVM7Z3UJrMBjdpatazRu/A0bSGM+1N7duvIoPPJYAbuml16KHJgWRaWQMZ3UtyWUOr7VIAJBVSDwxJbNHUQ9KLuCdaY2BeJ4l06EckhtskZZl5FoWDXZFZN3TveG8NypVO6dsDDzQ5a9ROIo5B8khEMUDU7qBq8MyVMiJpDFCwE0LVTOszjsbUlodbrXmUPEnku0itHGWLwsKMblWUUkgsmtoAUtyKOQ/UdBpIYyYp3kdUSVTIqIsgYsrqKJBaPjmzbHbSmxmY2EE64+JJ3ldkZ1QzOJZliB+SOWUE+7JEOY2kJZiU+dmcMTasrZq+DYzltM8xpjGmMaYxpjGmMjnqthMfmNj7ge5RgtzYvGXMpSldQJ6s9KE2XlrTge7CxhhdZPbYe5Hyjhl8a19UP4ErBbaNGkWjtYFAWO1rFGga5F9vfMsPMiKTQdgh4seo1yD9z39u/tmGGGpbUzUATJ0cddhlWPuN2BTKyMUZB8VEYZnIZU49xpCD/qI8aqs2s6dMhacQMFA3eelOpJ+nzKBsEDgHk8Xk9CmugkAgeZTZ2iJzs4Bs+W25eBYsV8Ee2T3gdr7csUxDWaeJI4wsdeG2xhRV4CqqTQkKF88KrcADt8gca2tNq9FqFCwTWigKESRWUAcVW1iK57mq/Q5imi1MbB5IhudrMjqQxci7JBWye573fyM6luTa+OrWGmpS36skSkPNWNYl1BJ9uXnsVkJXyrqVP8wCNLVavSxOQXlVlBJZVU+5B3ihwCLo1VCgOTm5po9RIgtYmU+zFgA1cFCTwRfx+/tmOXUPbWIz6pBkdx5+NqyyxP7AxzSywzdokhleVSBEEUoqoAVV34YEnmu9RHTOpKIZtbrNqbyxiRS7AhVZGcggIBagcUGJBFk5PdP1Wt6czyRaTRsX2bPMMm1ChLKwAr1WSbN2QPg5usDlMXgMZBja62UowoIvfnekjuBwO6SeU8lgvClzyQB8xPHmZg1/T+n6NIlRo9Oo2+bN5cQoADc8krAbq4s+oAdiCLiNRHqtbq5JnljM0hspDvYL3O1Y1A9JJ4AIsmgPiUdvbl2jTr+9MuOVbIKMbWRFlZwT5ArU68UUnczeA0h+YsFfnuOtcdf6Lp0L+dp2E4pV/NfmfNLEKAkcAKyKTdGyARy1Agfo9O6hOVW5bjF2sHlNHQsMzyOWUge9AkUeDVzd03uY/NWq8eKqx0qEbjuFOtHSWaONGYo7BpbksZ4Cn3LPJ7jyvlgJbomvOumCQ6U6XSJfBRYnc0TyqlmC3RtnN3VDkZo9W0h0sZaefztQxWrcybbNmyQF3VZ9KgfBPFZEqqooRFVFUcKqgBQP2AHAA/lq4dsrXfvmrTGNMY0xjTGNMY0xmyyNOPI0LtCYAxXqlqnKDzwY7UEkDg8A+Csh58fTnX5ZQysp7MpU/oRRz0HaQw7ggj9jeVbbdp3MfHkMBfWWG1SmtYmzHLyssU9WR6r8ofKsskXPHPkHkEAg65R1KMxvPp2FB98bWAaux2JHPAIugbq+QcvWllG+OVOa2uKPBJokfHv+x73Ryd+nd+7JRgNoPFajieCyC7DmeEmP3PHPIlWNZAf+/jkEEaiOjoyBfNXZILWTgqdyttcjb7Pt3iv6+98ZK9RMXmVEQ8TENHQFBGAdV5F2hfaSf6eARznQ+qO5chjxejguvEeCVUTMnaEAJl7g3+SM9vfyPAJYjjkrSPFy6hJmEWo1KbjbBJpYytEEOXjK+lWpTdgXdd9s70OLTzJGZIUa22kmMMavaU2kd2Hb3IFXu71ydQ+oOee3N3ZaeKFmVQ62mU9yc9x4Qhewnk8rx7igMVJJ4pel0+o1OoBn1mr8typAOqlXmPlrSNwAm7cDQAdQGKsOcsWqXS6eMiPTRbgDwYgfqII5K3u9jZO0nvQrIW3T1dZMMcb+dzWrAcBmWwxVR83zMw+YBj45Hkc8cAcjVu64uh1PRoeno7aiRZVZnJdlUUa3MSGo9rFmjytAA1/pscy9QOpaFYkIYBaUWCaAAFj0kknsG/TnO8en3cma3FuCoLl25ZhjZFCu0rxxqOSqASgKoUc8eeG+qA/U6/hXQLFrIiQSUCqPSWCAXsC7vpFMaogEkEEXxK9b1SjSyCNEUMpJ7CxQG5qJu6sgkH5OXy9DcVJWxq2Gj4QVx85H1eTwAD9PK9x4H7H9/P0l0GEohejW0CyOLajQPuRXcdhYOcX6xKGKqCCdxNC+Aorm/ue9c/sMyC1Y8g8aYxpjGmMaYxpjGmMHng8fXjx/PXh7H9Pv/wBc/wC3OMrq6hUZcV1R3rEo7FnzS5KNWUsHTJ1KtxmBJBHdLJKR2ngfYEjXOvEkPl6qYjgO28nvW9QSRXN3d8j+2W3pEgeCIcWg2UDQpWKiwOOzDv3+1nO47SvSd6I8HI4HLRygc932Ksv2H1Ibjg/cjnVV0Mjiams1u5DmgDxwrAgVzzu/m9gMnJ0GxWVqvgAp7/N3RIrsQDkF9c71JJbSTPZRo1kkeNIq8rdsa8ktEsgk7mDclioXkcSHkqRU/E5jMztIJQooEiJG9IBJsA9yKY/TZBvgjLH0AybECGKzfBdl77uB6eaI9rqyQBlWXVrO4CATFrV9eC4PZWDydqgJ2yFJBxwR8vPgd68k8KdVyKfQoAblHAFiPcfSAoG5WA+xqgLAa6FzEqaxix2xc8kM5UWRdqCpuquyfbjMNE3HtafLxRtXzOSKMzSxq9elHMO7u7Z5pHlcFFJHKRFnUKqg+Of08+iO0Dz5aU7gojh3Cy1M7s+0rZ5K2asC6IwiPWeoloUBI2mmemHA2qNp5oEAtQ/Q1lofpQahNarHFbfqVXJjHvWrc+QuqpA7SplWCpGfPgCCRuTwCPpq2eGGgOoRo9MoNimlmeWQ9qYKQkV/B2Mefbg5B9aMwiIk1BZSpYrGixITfYkF3snkgMCRyby+vprXmg2/GZx2yOIgRwBwEjHAAXgADuPAAAHPga+gemEnTKSK7VxXFD/uxxnKNaf47VVD2uzffm7P25PtkhakM1MaYxpjGmMaYxpjGmMaYzC3rtjxW338Z2AG/hsdOW7eSzwNPTYMeeG7Ugj/APB41UvE0QKq5UMNoPb+k/8A5Y7fP2nujPRZfcNwO45AvgDtxzZ/2rOt7Xm7JlP0PaCPB5/cfT68ckj+v8dc5gpdSewpiO/J7igO5IJsXxXA+MtkvMQB55BHtfP/ACDQ5PcZjJ6gI5MNDnctJYoY6nUp5bJ2r9+erXp0qePrRv8AEZK/YjBjqDHVZrVl5p1grye5NZaNI+41XxLMnnlXsi1AUBgWv2UCgX37doosfpFE5YvDmlm1D6eHTRyTT6iVINPDFGZZ5pppFiiijiQGWRpHYRoqhmd3UKpJrKL9++pXoj1CykWO2f1Y2ruPI5iSc4anVvWYp8vKlaSSRKNi7jaeOylqSA2Zq/wduWG3GkD01lU+4Ks0EtPIdPPGhDtKXiYH0sQWY36A1iwKUHlqsZ1bq/4aePug6TUa3rPhXrGg0egUPq5p44XGjXckd6qGCeWaERyEJI00aCFqEgSjUV4a1FJlIO9U91pEZ1PhYzMw+QqgCgKCqoXbyAeDyfOAGFmZd53E0qqCNtkKAfn1CrscG+LGVAwOiK20GwG5IN9zSgj2BPb35N8ZdJ6K601ixSf2FhRpYoynA9z5W4/URv8AIOOGj457lPzNwoDXbweJG1SAqFqQDjva+7KTQA/lYmz2NcHKr4kCRwkjbuK3ftVEGitgiqLe1335q/PbMIgw9VQAO5e7x/JV/t28ePGvo/Srs08S3foH2789v7/37ZxuYlpHJNkk+1ce3H6f5ec9rYzFjTGNMY0xjTGNMY0xjTGYveoaj/i9t5HjkSVb9Jm5449mavYUftyBM5HHkjnnVf8AEEYbSq3c+sX8WLFd+fb79qrJXpT7Z2H2BA57g17fr7/2u4Qwllo5oyPlU9o8nkNyAOfryPpyAOP4A8ga5QxCaktzW7vxxdV2qzyCa/eiCTeFUPDtq6F+1j45/wAujYHY4bfiGOsvpm9RczqoUdCurBYM7cyFtkZuMjgFvtL3fPwrAHyfI1VetBJddp3/AKdRFXqJLfxB7C+eQ1tQ4rdYrOtfgujn8Rvw/jF23jbwuOAPSR1nRNd8A8r7djVjvXi72bvLKbkv+jna1rbucpTY7f3Tm3kMnk4M3FSv1lxlqahPSuW7bY7IVc+8cWUlFWhRNCzjq1dZb8RinXHq0VNPr3tW3QSkgHabZfXwOUJauxFkjvdD+iP4kdG03TenfjP1KHX6DUxz+HvEcUOl0z6KSaFzNHHOs0EUf5jTSaIudOpllm8+LUSMRA2+LLa8bTmsZ3sVpAJJOSqAv3MXLAEqVLHkBlB7wrclACAdVGGZUbk0wqvSbbk8HsCex7cmiKz+dCLUfZeAaa628UQLsgEGjdEjucvL9EkVatYxFKzarRWpGC1arzRpYmEKjkxQly8gXy8gAbgsGk+xbo/gtGk1kTEAKH7mxyBwfk8knb3ND4sc98USoY5kUliFJNWQP3oD2BDUBweBXF6+JT28bTX9oEJ58+W+Y/1J519ERAiNAbsKBz34GchblmP3P985DWTPMaYxpjGmMaYxpjGmMaYyC+vdIzbZxdwAH4PMKh548JbqToR9D4LxJyf348j66iusJv0T97BsfYkEfIrv+/P77mgbbqY7NA2O9c1x7j3/AHvMGLG5M/jd77MwuP29dymDzc+bi3Dm65jWntmGliZbmNs3WZgzR5LIxRY2FIe6RZJveIKKx1x/XbYpwK9TMR2J7AE2VBC0LJL0PjnnL9o9zozWAFC0Cwsj1ClQ0WPPO26F39ot9XO1J+rPR/q90t2/lMRFuveXSzem2sZBfvRqlS9uXbd7E4yzkq1VZr9XHSXbdNZrZqyGGGWOeOObvRZKn1O/zMWpZS6JIjkn6XIJ3beF3HclgGypAJ4BI6P+G/XtL4Y8Y+FevaxJZdH0TxJ0Xq2ti0oD6ltHoOoafVTiBHZUM3lI5jRmRJWIQutgjysbe9GXqh2DuT0+QdUNv4nbm0OiG5K+4s9nLe+9tZijeo4zb35fSTHY7G5Oe3TerdFqljw8MVSzj7onuWqEtVq8sd1HX6ZoNQkW6SbVARRRJCwYFiDwaFrSk0GDFQQB6ic+0/xF/Gb8Lus9G/EeTw/1KfW9V8Z9Kl0Oj0o6H1Dp8mkk1OvE80ur1msgi0zxvD5c0xMhdNRCYoU1Al8xM7sBizXzgZ2jctb7QiEERNHJ39r9vHb2E+F5PEisCvbyXqCF13F35Lll9gBZZO3DKbBFFhdkeknd8b7gyUFHoU2b9R/lPzyeQ3ANUBRFZZr6W7SD1B7OwdQUrF2ptM37MslZTeoRZKx7MMdW03aB8dFC0yQpD3wQorM/L9y9j8DR720TreySY0WJIcwoULoNqkIpP8MVu+oEnbZ5h4hkMY1y166AYk/SGYlUI3H1Ej1m6O1Svc56K6ye1Xgj/wBkMa/x5VACT/En6676opQPgDOZHkk/Oftr3GNMY0xjTGNMY0xjTGNMZEXXSGV+mG5bUA7psXFVyqJ/uWjbhkmQH7F65lTng8c+fHPGprlvST8WRGWAHclbNf8An3+MywHbNEf9aj9LNX+1/bK/sbuzG3albIVLEbJaTlE7h3ByxRoXAPIkWQGN1YdysODwDxrjPVAruZE5B5DAg88jk1wQbBHB4N9ry/aYyJ6XHrAsg/pYZaBsNxQ4H68k1x+uHdO2Ml0zz2e6d75p4DqduLCrujb9MbosUmy1nH14trxX7O3EuwQZFTUwEeAS37ExrtTiaIRWBLLJCJNu1ESsgkiSRUk/hglUZy43EIdqs3IViASa+k1kiyOkTyBmQsHCENQZlChgoLAkqCAaFgX78mhPpl6xMzOmc2X6g9ibuluTWlWLL4arkhj4IYaz46Wtaqv/AIh1WGRpIO2earB3mWlHSEk4bN1bojzLHPoJ9OjIoWn8sOGDBt4J2gSWq2AFv0hjwK/Gk6kYiUmR2DWaG7a1qQFIrheT8n4sHOyZ/wBaPTHpjSkqbJxOWy2asWLFmCpkWvewL8kVaBJ7mRyHfY+FSGrXD14nbtaJ/aVHd2aD0vhDXa/URvrpoY41UIxhWMWu8t6QihCbdiLoKTx6eMmD4ii08LJBG5d+aksc7aYmxYNKBQFnj3z0u+hnAru1OhfVu9SqV9z5va+Ehz5qQukcsefxtfJQxfqu83tUbpkFb3Gd44bLoW8Aat/gaIJ1RtNGbi02r1KxbzubajPGrEmgWIUXtoGyQBld8SvekeQj1yxxs3AHqJViKU3QJIrkmuSRl8oHAAH2HH9NdzznGNMY0xjTGNMY0xjTGNMY0xnXN30BlNrbgoGMTfFYm9GIioYSH2HZUKnw3eyhe3/Vzx99Y5V3xuvuysB9yR2r3z9IdrKfhgfjsfn2/X2755sPUT0J647R37kN6dIt2Zltq5F1+N29i7TizgJpfnhuyULImqXKZnEqPLDGtkR9jFJDFIdcP6kseln1MZJKmVmADEMCxJIYcGidwU0bFgjgnOkabzNRHC6sd3lqhHGxuNoKnkdqLbjYskWMox/FO6U772znPTXFbzD5a1hOiGI23uXJY1g2TrZibP7gzmSv2cLVZLlWjdmyjzfFRKayyq6MYj2KMfQ9VC83U472nz4ZFW1AAaHiMkmlYBQ2y7KMCDQFb/UtO69P6bKQwt9bGW2ttYq8JLKxHrUAlSQLJWubytfZPVCPY+YmizGb3/uSGpLGMfjqGbs42vNJCGRKssdiW7YNeVvbV41khbsJUKx+Uy2p04mQhRBGxNmRoxIVFXaggLfFWxNC7HxCrS/UWYDgrZCkggEEgFgByQo/WxVmdd1dMOp3Wa7i8liOkkeHyRlqusFJ5psgInjV3hmmlmMPlWd3ml7GQEpNwSI9RWk13T+nF0k6jvWuS+0KGBP0qOx+CN1irNZtnS6jUkMmmYG6tVJ9wOWPcHixdXfF3nsN/CM23vTb/SrZWz9/VrUee2zlrcCQ2rQvS18PE8WRxUAuKOJko1pjWRlJWMJ7KMY41Am/Br6fU9cn1GlKNC6GS0BALhQGNAAAsfUTQuyRV5o9fDx9NWOWw4pRZ9t9qKuwBXAvdVfYi+bXXMoeNMY0xjTGNMY0xjTGNMY0xml1DqyNyQ6lTx9eGHB/sdP8/wDcZTh1Yr7fTcW4uoEYzMm7+jqbmxeaxGCvzQWcrjWx9nJQ4nJ4YynHZj4+mnxW3WyEPfVyUtg0rcBltc8O8ViMdS1SbQjCZkdhSNd7lYk2ClSXdKeTfyel9DeQ6LTxhg0ciKyqwLorHaGIAPD+gKx/0rXF5TnlvxD/AMPfq7vnBNvDbO78ZuzIY8Y2lmd07EmkgWrLXMljGz5DF5bJQ1nrM0texFLRUCxHJw8g7WNdfw71GBZtRp2UGSnnCzMGkMa+WjHYSC2ygCByp5Umzk2/VlaFNDOxeCF3eBHRSkcj7fMK71DDcwG4Fq4q+xyB+oHQD8OdN4DrLTyeWgnxv/Mp8HgKOVsYvJXI2Ey23xBghYywAK6ivLGWb/rBlIZdNtb4j8k6FJEtwsYkmiZWVrAIEoRCq9iCyu18FgKrAIumhhMR9JJKJIpBo8EqS1m7umUGuwrjh+nXq/6L9T+rG1ujvRbae/bFjJ5RXubqu43Bbcx2NwuK4v5m77Nuzlsg0T16zVu00IhJNOiJPE57tRGt8Oavp+k1HVOr62GVY1ATTRGQtLLKTHGpkYAKN539mChb2kVc507Xx6zUfltLp9oVHkkkcehES79CkFmZmCqN1+q74z01ejK1Plt/SR1sdFQwmK2/btn4cH2JshPLBDEjzsFksS14X5UuqJ2ljDCqc8dU/C9VkhmmREVQoFqd1kUa3EDcRuPICoO6gCsofjVTE8cZYs24EXVbaYmgOALocWeOTzloeuxZQMaYxpjGmMaYxpjGmMaYxpjGmMwI6y+mjc0nUzcXVvp6Mfkv+LNt0MFuzaU9SCGfJ/ldi9apW47pmhleWOa44jeOQzxQPLVNazEY3ioviPws/UJJtXpTvlkpjCxC7WVQGaNj38z+YHsQNoINZZuj9cXRrFBKoREZj5yjcxBIIDqTRCc7SADydxIPHi/9Zf4a/WDZvVfM5aPox1sbZm9M7ls1t07IwWD3DnNhbjuW5LMmMz9TI5baCjbsjyWEqZWpLYgnq/CTJL7q8NG6fpurh08azARSxIokGoWUK6KvO10jO51oVagMaJBvmU1nUNLJO7JMsiSMWR0IU7mN1tLEizdjdY4HYC4t290H6s4zHVcfkOlHqOt2aHdBKtzZOz8OtlBwpWOS11JtIO9QQJBFIoB715A41C6zTNvJSTRgNz6E1TsDQ52x6Uk0a4JB7A37ZdPJvCmnNC+ZIkUi+5Z5V72De27B7EgnOz0QejjrpgN1bp3r009KvUbKbr3slDC461vIVsdtvZeJjdpb8l7ckEOK2+JctbNezbgj3EZ1rVURlkWV+yv9V8N+IPEQ0ukhgnk0sDGR5TE+jhmkIIRmfUbXCxpYUqqsSzEAWCLt0nqfh/omnmm13UoIZ5yPMh04XV6nYgsRqse5E3N6mtWG4iz6az1v+kboLvTo7tCW11MzeJyu+c2kUl3HbciaPbm24CqP+V46V4oZL0qsFWxdMSIzIUieyC1mTqXgzwvN4b0LR6qeOXUTEMUgUiDToAKijZxvkY8+ZIa3HgCqOcz8U9d03W9bv0UEkOlitUadg2onNn+JLtJVe9KikgLV0eBl9q6ZVsaYxpjGmMaYxpjGmMaYxpjGmMaYzQ8aSKVkRXU/VXAdf/VgV/tryvb/AD9P0/wYzbrQpKwZalZWBBDCvACCPpwRGCOPtwfH20odwAD8gC8Zuu0fz+/kk/8A0njXuM+6YxpjGmMaYyIuqK9ShNtuTYOFoZ2kk2RG5ac26J9p5T2jFWbEyYjKCO5SRktpOMgt3GXTJUcRVfYlkaZdLVya6NoW0eng1KXJ+YjllaF62jyjFIAyj1bt+5GsUBR5y2+GNF4P10XVI/FHWer9E1KppG6Pqun9Nj6rpC4mc65Oo6K4dRIGgCLpDp9ZpQkpd5jIoVM/Lpff33mBYyO99oZbZ97m/BLSsbso57GPYgyUtctQrV4knWtYjj+Mp3pPbjsVGgeKKFZzDH5otRrJkP5vRflGXep/jJKCyvXpqmIYDcrkAMhBrnj3xZ0fwz0nUqvhvxSPEmnk8iRHPS9V0+WOKbSxzHzzKfJE0Uj+RPpo9zwTrJG0j+Vvf//Z</t>
+  </si>
+  <si>
+    <t>Trà đào</t>
+  </si>
+  <si>
+    <t>Trà vải lài</t>
+  </si>
+  <si>
+    <t>Trà nhãn sen</t>
+  </si>
+  <si>
+    <t>Phin sữa đá</t>
+  </si>
+  <si>
+    <t>Choco Choco</t>
+  </si>
+  <si>
+    <t>Phin đen đá</t>
+  </si>
+  <si>
+    <t>Caramen chảy</t>
+  </si>
+  <si>
+    <t>Ngọc viễn đông</t>
+  </si>
+  <si>
+    <t>Cappuchino - Vietnamo</t>
+  </si>
+  <si>
+    <t>Latte latte</t>
+  </si>
+  <si>
+    <t>Phin bọt biển</t>
+  </si>
+  <si>
+    <t>Trà Oolong sữa</t>
+  </si>
+  <si>
+    <t>Hồng trà sữa</t>
+  </si>
+  <si>
+    <t>Trà xanh latte</t>
+  </si>
+  <si>
+    <t>Trà đào sữa</t>
+  </si>
+  <si>
+    <t>Hồng trà chanh</t>
+  </si>
+  <si>
+    <t>Trà sữa Phúc Long</t>
+  </si>
+  <si>
+    <t>Hồng trà đác cam</t>
+  </si>
+  <si>
+    <t>Trà Oolong mãng cầu</t>
+  </si>
+  <si>
+    <t>Hồng trà vải</t>
+  </si>
+  <si>
+    <t>Trà lài đác thơm</t>
+  </si>
+  <si>
+    <t>Trà Oolong dâu</t>
+  </si>
+  <si>
+    <t>Sữa chua Phúc bồn tử đác cam</t>
+  </si>
+  <si>
+    <t>Nước ép táo dâu</t>
+  </si>
+  <si>
+    <t>Sinh tố dâu</t>
+  </si>
+  <si>
+    <t>Nước ép dâu</t>
+  </si>
+  <si>
+    <t>Nước ép táo</t>
+  </si>
+  <si>
+    <t>Sinh tố chanh</t>
+  </si>
+  <si>
+    <t>Nước ép cam</t>
+  </si>
+  <si>
+    <t>Trà xanh đá xay</t>
+  </si>
+  <si>
+    <t>Socola café đá xay</t>
+  </si>
+  <si>
+    <t>Bánh Oreo xay cùng cappuchino</t>
+  </si>
+  <si>
+    <t>Café cappuchino đá xay</t>
+  </si>
+  <si>
+    <t>Trà đào đá xay</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwAAAQQBBQEAAAAAAAAAAAAAAAcICQoGAQMEBQsC/8QANhAAAgICAQQBAgUCBQMFAQAAAQIDBAURBgAHEiETCDEJFCJBURVhCiMycZEWJVIXM0JigbH/xAAdAQABBAMBAQAAAAAAAAAAAAAABQYHCAMECQEC/8QAOxEAAgEDAwMDAgQEBAUFAQAAAQIDBAURABIhBjFBBxMiUWEIFDJxI0KBkRVSofAWFzOx0SREYsHhkv/aAAwDAQACEQMRAD8Av8dGjR0aNbFmxDUrz2rEscMFeKWeeaVgkUUMKNLLLI59KkcaM7sfQVSevCQASSAACST2AHk9uB516AzEKgLMxAVQMlmPAAA5JJwAPOmKZb6ie5fOue08N2xftbxTtnUkaTJ825PymjybnnKajQbrvwbguAtyUMJTlnKuMzzLJSzz1FLQcfQyrNDggjr62piFMaNKAFWmqJJlmqJ05DJT00Tgxq2RiokfGAQIyTp3PZ7Ra6B5bqt2rbuw2w2+lopqS30Uoxlq+4VUaNPLGCf/AEtHHgEfOfsNKfNl68wLXcp+ZdRoyMWckjZPqFFB0xLDaD76+wG3UkRgx7SbMDG4/InOMnDZHyxntx44401HDMxIQAEnaqjhQOygZJ4Hk5J8nJ0lHdPuTxbtzxqzya9b8ZK8Ei4uAtPA+RyCIDBViUh2ILMrSzBPjhjJaVl8owWj1v1baujrFWXe61EMbRROtJSZPv1lTgmOGFYw7fNv1uV2oAdxB06+kOmLn1XeKa2UUEjRmZGrKgKPbpKcn5TSMzKOBkLGG3OcAA99INxr69eQ8e7dZnN8pxVbIXpUyVPitaaGOlVXLaV8ZG9lZ4rGSor5SSZJPjjtwxxJJDIYnZo6wdcfiKqOhPRm++o9d07710pI6hLVbmlaOmqrhUzx09qWQ7jUPTo8vvVzQoHSKJiAqN7izGvobTXbri39OWy6BaCQUslyqgwlmiphuNWQAhjhnfaEpUbeheQKSGUgxpcu+qnmed5RmuT5XK1Y8rmrj2r70aFKKEsUjiVIo3hl+OKOOJIkQO7qijyd3Jc8f6/8UXrveb3c+oEvlooqq61JqqmKl6ctzU7MESNIkFSlROsSRRxxj+KGIG7duOry2b0Y6St1mobPHS1MtNboRDTCesqDIAXaRmZ42iWR5JWeRsqFDHaPhtGurxX1A5K1OEXNmCfy9PJHB8ZbZ0G1FtB7+4DjZ9A/s46H8UnqVEiLeJY0lQKRWUFJCInkByWnp3iZ40BJ5gLBP8hHfPP6V2enBaKiEsRGGRnlDAYzwTIc4ORyQc4yQuMOb7d/VbzTiluvBLlJYIvJXiuV4qchIk1/mxizXnrWAoAVopEQeyB4MdibeivxiXOGvpbf1JVyW539v8jebetOyye6pUzRe/Tz0UyRtn3YqmOLnK5iJyIw6m9Den7xTzy0tKjSgbpKeqkqVQnOCjey6TxFhnayM3PIBXjUgnA/rNyKnGnl+Pxua49cnjhl5ThkfH36jTAeIyWId5qwmQnyPwyQQzjyStqVRF1a+2/irvnTktmqutLXbepOhrpUR0v/ADB6cWS3z2yWfCQw3/p+Z51pagAA+7DPHR1QDtTyK6inNc73+H+klSuj6bq6q3XqnjlnTp+6ulXBV7GLO1vuUaxSvExO3bJG8sTEGUJEQ5flx7l3GeV11tcdzmMzMJihmY0LcU7xJOvnEZ4Vb565cA6WeONvJWUjyUjq5th6p6d6npkq7BerZd4Ghp6gtQVcNQ0cVSu+Bpo0YyQe4MlFmRHbBG3II1W65We62aY092t1Zb5t8kYSrp5YQ7xHEgid1CS7MjJjZhghs4IJyPpf0m6OjRo6NGjo0aOjRpOO4HNcBx+haxORm+S7k6FqulSPwLJFarzQfNYZ2WOKLTOQrEvIqP4oVHl1nio5KtXVQBGQyO7DIywwQFyC3B5xgc9/plg3iWNkVmZJEYBThsqdwIPj9PfsDjOo8OMdtOMtxLFR4WhV4nYoSGCFcFYTlvDY7eLknotZwr5BLF7GT+amRoIrVWxj5pbNWeqWDvIk26zyw0WICbRVRloGSGo/xK2P7LFRJB7yvJGrjDe2ro0bEqcgZ0/rrepZLjOaktdKacCVTVxNbrjGJlDmOdYNkcpTOwMyMsgCyBgSSGq9+uDfV5RsGPsfme3+dFvxa6ncjvd3E4VFFGU/S2Orcbq5CRVdvTxMtdUHiE2QQYi61pPUWnuji23ClnoJQrgy9TQW+fewBZYqWepgQQheU/iZT/LzlZE6TuXQb0im522piqofjiPpz/EI2XP804VnL4xydwPIJHGkJ4H9MH1l83zVe93p5D9PGGpQiTzXj/M+93dW1FoFa7V4OW3KuBaeCUrKwtV4oLSr+XPx7DowP+VvX/XNRALpV9MwUFJPHULUXK4S9Q1kcinG5aa3mSCTap3RxTVphds+9lcgvef1Q6E6ZonFlpeomrZU2NFBaqCx0kikH4STS7akqwO0skTSKDkAjt3P1ZdreDdtaWEt18rP/W4ONXo7013KOwzOZlgiQZOPDyy2f+nqYFaSLF43FV62PM03hZtzCGNg2PxUdE9M9OeldyostcOpKvpu5UlCLi7SPU1DxRGrr6KgjWaGzpHDBIIBDHAJHlEUk5RS67/on1b1J1P1O8rRpFaoLnTzlaeJEFPTrMQlNNU7IWuEuJVaWSeR3CBmjjQnBiNy/M2aaRhOzeDNvbaX16+x0ASN+z72P264+UdiXYFVMZC4wNxOfrxxg+Md8+ddDoJAwQHCMAmVJOQcDI5A5H99YpU53IlxQLJ2jkD9Z+yk79A+2YAaJ17O9aPpXm6eUwHMQ/So5XsxGSDkcjJPY8f66UlZSoGQQRtI75zxj6EfXv8Af7u57UdyoMi0OPvsk6gkwtIFfxYjZ8fIbXyAG9nRIU72NdMpKdOmrpDU1NHFV21pCJ4JYxIKYykJ+Zi3AgFCFLr2dQOzDOmzfrUZIjUUxZJBgOEYqXUZIBx3A5PjGn79uc5URrFYOClhDHPQmYNWtV5Fb5AI2P6XO9qykAOUI0wVxdz0muVprKWutFSkdRb7hTiluVmqVV6K4UVQjCQCNm/hvhsxyIcxOEkUq6Kwgnq6jmkSCqRtk9OxlpquIYlpqiJwQxbuRwS0bAhwxVwysVKy8F7gcg7Pc4xPIMPennx07hUimkdo71IOv57C5GMAfJIsTj4mH+ZoQXYQrq/iz4Jep/wu+q9k6xsd0uNz6IvNQkCRVEzS/mbYr5uHT9wDAJJX0sDh6aUhjKEgrI/mZFVu3ywWn1Q6SudmuNLBTXaljY744lVqWsIIpLnSN+tY5XOJUXgAvC4OVOpdeJd7cJno6P5+Fcet9IWgspOJYAJ1Ux/KkgSaNdtoyAOBollVVJ67f2msob5aqG72irjqqWvo6atgyMSexVQJURFgDjJSQYJwP68a5z3ay1tmrKqiq4nEtJPNBKwTC74pDGxGM8MRnH8oIye50t4IIBBBBAIIOwQfYII9EEfY9Zwc/wCv+mkjWvXujR0aNHRo01H6iOBZE4/kHcKheWzh6XHJn5dx6zHY+VsfioZJHzeDu04bU9S9RomWS1XanajsQ1hNXQWU+CztpXQ09JPHVPLFAIpi00I3SRRsrb324Zm9sEuCoJBGQp7FTtQaWspKeGNWqpaqJacsyokkjMBHTylio2zSbEBLAZbHG7UROEx+fw8OT5T2N5lyPItcC2768O5PhclSydvS7s5XCQyZLEnJzxJqQyYqpakkLvJWpktGsQ3DorqZ4nvHph1zUySTYMkEF0o6iiqWzlZJ6Kvp6qkindcFzG1L7rnJjBGBOjX20PIls9Q+mKelaH4RTV1sq4KmBCQDClbC0EzU8Tg+2u+o2rhQSMaR/k/1td5eJW58dm8Py+5kqiOJK+U4Dxt5VKHxZfnq368bSsx0qERsNiSRY02eoc6nqvxTUJZQKSZVGA56btNZKFBCljJb5tm/BJUMiE4xyedP6xdG+jt02mlr6eNpMDYt9rqZQWxgGKpVSBwed3Ydjk4xuP6q+/fP8RNexvIeS4DC2fPziixOJ4+a4JKSJFPWmS/5xS/oUwzgiRSsiDYXqHbrWfjOuP5ynoupZLXRVDCKkmtloslqljVnKlpqhjJWoY0yCadYpFkBIPln3SdBei9smjeqoaCurYwHMdRcK6sVnABRgN3slOdwLDDg8AjgRlfU530yy2rXFJMfyXN5p5naTNzZ6CtXq368E9uQ26xrD86ZKgCzNat2Hha3DGlf5LIcR7ffQPrCGJ7p1J6j3jrbqioqJqauo0kqJaWhIo2rp4KmSeoD1NRNAuyQq0Zj9yNVDNIUabOi1tskvtUFpt9jtUdKs1MY4d0lVE04p91Ps4pxE+XVVRS43fLA1GHnvqbuYmu5v4KK1flezBVjr5yOkZZ67iOYz1p4ZXjSJynmQWWTzURSenCsyg9JKOpldVrJaVIgjTK9KZFh3ruVQw7nhh7Z2OhVt3GCZeFHcqd4Y4pYp6eVQ8U4AKtHu2iMEgkOACDk8HAzzrj8O+oepnbMc8yWcXFNYMRkuS1xBVuRqDLWtzhkSudBjA8wjWZPWkYhesl59K/yyzRUlVBUyRwCWGEqYpamE4w0GWaN23HlSQcggc40oTTPTRFu7xErNHhmaPaxGQoy+PP6QBz4wdPy7Zc6YyUbsEpevN8csNmFvkhli3oSJJF5I6bBAcEqT+5PoVy6t6TqUE1LLSzCTDJ7JjfeW+gADZz3AUNnv5GvY66nqISRIjZBVgzAKuCBk7zng984+x1KRwzk1+5Twl3HiaS7OIkCINvIwRmVFTyDFpIwGAGtr72B9nr6VdJ9dVlDapbP031DWXCkmkoS8VqrfalhilKx5keNEZGj2K77tmeSQdRDfbjYqB6+nuVyoKSnQmVWkqYf523OSu4lgh3Ht2GB2Gnr8S49zjkHHJhbxM+NqNP8pyGRiVK8UER89xyz+NUSxMvxhZbMMph8v1HxQr0A6d9E+uOpek7hZ+s7Na7FariTvk6jqKXMCMg2TU8QM0sU6FQAytExQAmQbQDXLqH1E6Ptd4iqLNX1F0rYlKpBaYJpffYgja7YUGN+5AWT5HhScHT5/pz49FzqpkMJjeRVcnRxLwR5zM0pIr0FaGzpThcdNTFnHfmHWJjs5S1Yrq809iKu6rA9nvSmyWro7pin6aoepf8Aiuqs8EVDNcIaf26OGNdvs0dM6ho9tOq/p9+aUJlnK79mq2+p1dcaq6peLhZGsSXEvLSUEzsKqbBy1bUJLsm2O74z+XiR3KqocAusksUSQxRwxjUcSJGg2TpI1CINkknSgDf7/f8AfqQ9RDz57+fGtzo0aOjRo6NGuParV7laxUtwxWatqGWvZrzxrLBYrTo0U8E0Thkkilid45I2Uq6MykEHr5YKylWAKsNrBhkFW4II7EEEgg8fXjX0rtGyyIzI8bB1dSQyMp3KykchlIBBHIIBHOqGf1b5ibs1307t8VwGTy3Fp+J9weW4KvJh5r1dI8fRzV6rWjFrGXKOVrQQVBCkaGW5EkPiIhHGpTqmXU1HdOn79ems1bW2qWKumVJKGaWDMCysY/nA65CqSoDBgq88ga6ldBw27qnpHp2rudJRXSOttNDPIlbDFOPeemi95ilTHIjmSQMzHKlmJJwSTrJ+1/1Ld787gKsOM7tcvtCpXSCJZ+TVuRRvCkarF/2/lVCzbgMYIBUs/kFDSlyTuIqj1+9ZLBWz0lH1bV1SUzFBDUS2usZU3EBWjq4VlZlwNpDnOe5OdfV29IPTaeVpKnpO3o0h3M9PTVNGATgk5pJPaOckkbQFIO7ONcrO/Wn9SPAL6QZevxPl9AeL1rnJO2nGHmkA3tJMphaOMtNKutAOSfFgVDAdOyh/Fp6iUcCSXKhtF0ywEy11rSnlIXl3M9DOFcMMDcyknkNjvpBPoD6fXFmFDLdrQ6/9L8jdp3QDyBFUlkIUZIXdtGAMDucD5n+JfyxqTDLdpu0NmfwISHKcYu2EJZPFmVVjRo428QCPkb0BptqOnvafxP0PUQenr+h7FE03M1S0glhlLAKdsZj3lieAd4YgZJbBJ0l/D+1skR7f1v1NEsZOyNZtpABbKkiVVC4JONpUMfjjjDOuT/iEveuPLL2A+miWwxCSWchwrL3p3A9L/m2LwZAoRVVQdqFHjr0OnzR37pauiFVH0XYwrkFmNIz5OCMtum8AEKWGSOB8RjSgOhuoqfbCvXvVBVCdqCsCqm5iSOOOSc5P2OddNjPrvuu7flOy30148yOrP+S7b5KdX0DsvHPlmR296BPpQP42o1ay89LQN7kPRXTfvLgJJJboZDGD2IWQOe/jPjuMghTi6G6gqB/6jrvqmRQclFr3VznnIkVh37bsZBOOeNL/AMf+v7Jm3h4sNwDtZh60WESll68vbjBZKKxmXMqyZbFtPjlbF0IvOF6mLnkuaaFzZsSo5RUm6dcNQwGXp7pjpunqlpWAkktVCHFUQwSWECFiEU/JVZjnHyHPGqPTNpTMt36j6kq42qEdEW61kWYM5aKY+64eSUZDSKE25GFPh7WD+uiajxXGWz3BovlPy/g2J4ph+O4HIpZJA/LKMfjKH9PjhGlaZ5ECgai89aMB1HV/r5e7mYh1TWWG1oSHktVHQ0cfttkn2jQ0qzOdvClZRljzng62Kf016M3OP+HIqsF8rLdKmsqwqj5bm/MTzI7k44KcYBBGdYfn/qm5n3FsUsbbzOSNa1LH80M2VvZu3PH5g+Ni3ekWpGpUeIjggkUbJBJ0C9uluk71cJWq77d7/fJ1GWnvFfUT+6dwYlYZJpQMeMgbR4GlqOxWCwqrU1FboXOURaSjggSPJwARDEpYqcnLHPAx41a6/D241BgvpX7cZD4BFe5VBk+SZCRtmWdrOWu1aLSOQPJUx1SsIQirEkbD41APq43QtsS19NUECxrGzmWocAEfKSV9pJPJIQKOcnGM656+tF2e6+ot+YytJFRPBQQZOVRYaeMyqnJ495nJPctnP009rp4aivR0aNHRo0dGjXywLKwGgSCAT9gT+/Ro1RJ/G54HkO2/1qd1Z4XZ8dziHA9wsaYY/Iq3JMTWiv1pUDqy6y2PykpmIP8ArQBGDErF3VfTkFTXz1RQEVMau/wBG7BRsYA5Jwe/PI8DN/8A0G6nNR0Laqfd/EtZmtrBieFglZoDu+8MiKF4/STz3MeHZLn02PhjgnkAELABXJGlbRIH7EMdt4n/AE7A9b6pd6qenNPDdZrhTRD3njMZCLtQ4O7cwGPkSe+7jk+ebLUNeK6nIkAJGM+eORgHgjPnBHPjB05XkXJk5PjXrVkMshjVWZSXSP8A+zbARDoH7Mzej60N9V4uvSNW8izSSvTiEbogzECVjuzH7YYEqBgHuCWzzjGtyCVKcgNtyxzg9s8bSCADknOQc5+vJ0xPu7FNQVz8/gQjK5SUglgS2vTb9D1/bevvsdKvSCH3zCyHfG5GShA4OCVwMnDZxjz/AH0syASoHAwNhJ5wfGeMnjn+wPOo/uVZjJC+4ivTqpkDDUrFPTE6172fex47G9+XrY6t10fbKqpoQd6iPLI6uvzz2BXseOTk575wT3bcvsCYK0eSSA2OBjPHkE+Qc44x3zxt4PO3YVaa/ljBBEA8s1m4sNdFGv1SSSMkaDZ1slQWPseR0V2v6anLkq5YMpwqoMrx3ztyeR8Rk44x4xnNRDHnCAYGCMkceOR2P7k+Txjhy3G68l2vCZ5ZJYmVSy+TeU0M0JK6c7ARg6P56YNGPQ0/kNS322ot8xjn3iRHBBkQbgRg4w4PfjH1HOe2k+arjnUsgQq+MMjhxwCOMdwCMHBHPnnBcFwyitZIizsS7+ZYkA6IH6iR60SC3s6G/tr305VpUmbdIAzE9zk9hntxj7Yx/wCdBqr2xtjXbxnJIxnPPYcdue/9dO/7bwz381hq1JfmmnmihrhTvznklEUS7AIAMrKDr77P7+upA6XtsCU8vtxoHYKihVHLSN5LcfLBB/pkd9MrqavMS+7JIdqK8jDjARFLtgrzjAwOMDGr/wD2Y4bH287S9tuDxjX/AErwfjGDlOtF7NDEVYrcpH/lLa+aRvtt2Y/c9S9BGsUUUagAJGigA/EYHOMcHJJ58jHjXMq+V7XW83W5OSWr7hV1XOeFmmd0XknAVCq4+2lN6y6S9HRo0dGjR0aNHRo1TZ/xIGFlwv1E9quTVR4pyDstBXnYppZLOG5ZyOqUJ+zlK9ms2m2VV9fpBG0O8LxC4zgCQHkY4K+Dg9/PPfvjVtvw8zGSx3mBs7ae7K4wef49LGe37xHtyf6cV0eF85xuMrq2TrWJpo1kUGjLDEWKMzDzEsTg6GvIkkqml0AoAgbraxVFwlAgaH2yGyssbO4zwGBVu3fHxUjsSfNu7JJiJlBAJxjduAwRnOVyc9u4Ax37DSi5H6joqmDsYalVSrHZVPOZgj3Y2R2dGr24zGyAj0UVU2dDZXaNE8vSccEc0VZHSTrI6sGERklAQYUKW5UZJJIwTznIGl3/AA1p6iOoErB04xkrGRkE5AHfjgjH3Hcabrzjurh85UYPdnEn+qVpVJG1IJLMG0CPsSVXz0NAb10iWr08hhr3q6anhkgkdn9tGb3FYsvyEZHxHJDYOBjg6XlaVFEYXHGASDznHJJPA7j6+T2OmnZ/NYWe2XFsli4clVkYqQd6Pgu/ZI8gCdfxs9WL6fsho6Q4T5BNoJILfJccEdjjAGePBBGm3WxVYqse2xXIZCAuCpIAyQfI+uD313mBfE23ijcwXoPLyMUkTPF8i/8AtSadUKyQyFJomU6WSNT7AZT7cqVdvz3I8cqSISCVLLwQQCN6HsQRtJxlTjnBNRzTwzRzQtsmiaNirmNwjfq2sjErwPGPtzjTtOM5CW/ItmYCZ3WFGC+MaBYokjiRIkXSosSKAij7j378ttOrkkmqZZJHLu7Dk8knaAFH2AACqOwGtRIUpoUjRBHHCioqjJIVQACxJLMx7sxJYnk6cVxyl87RF3ZIioHgqhWJf0SSdg634oPQB3vf2GJKlwVEeGLHaBsLZJOOOeOf3x3I1rllXO44AGSTwAO/f6D+2O51I79IXDYOWd6O2nHoEVo7XK+LUnKgH1NmaIk3+3kwPiSfZJHs+9yRZppKOkpY3Ox6qupkGQP0tMoOMcA4zxk4APbGow64rFS0XuqUgCltNxdGB8imlAJ5PBbGBkHtjORq+ioAGgNAEgD0NAEgD160BoD+w6mXXODX10aNHRo0dGjR0aNHRo1V9/xHHbxs5jPp/wCWQxeUkOL7i4KZ/HfqC3xjJ1V+x9j57pA/hmI1okNDqu4Cgjoy3aZ5kLDjGAhUZOB8gSOT4z2zq1P4ZnM1R1LR5Hw/w+q2nkEMKqJmIJx8cL2+vkDGqadvE5GjbtxGCQVxKSXIKiNtASeLAa1o/rA9r636PUcXW5U7wCYMgYAqFZhjnJALAkg8EqAfqfodXTtdDN7yoqnac7mx2/bHc47HjGsAz1Sw0jIkis7aXwEyRnRHkutnZGvW/XvW9H0Y4qXq5pXlEcZj7ly7BVB85VD8QTk8DPIHPaQYKeCGONWZgVG0koNpZs87iQMnBABOTtyeBpE+QYqzDkoJYLU00kWmlpwK0rMvkFf/ACYw7soVtGVk8ffl/ADyscM7RxCioHuCuoLywU8ze055O1ghDAeMkZ7nsdJtw6i6btaSx36+Wa0KdwQ1lxpYJCMZH8N5FlGfshUkgbs866ebi2Vsl5YqNpVeQy/rp3CPDYbyJEGh6IXZOxoEb0T0/qWnucABmtVyI2cbaV8diDnyeSMEDkc6jm5+qXp+JAkHVtimYR7Qy1eULduH9vYwwAQ2SADk/UZJgYJcTNHDZKAnfh8gaN2O9HwSQRs6o3/iraX77I2U27Uksqe69JV0xwBsngljOBk5wwAA/rj+4xvWXqyyXhjHRXm0VbsMKlJcKaZh+6LIJFPP6Smee3nTquD2iRVJsSRhGWR1FVWEwVWUx7YOEjDlZVdGWUMie02ymOauDbIJCgaRSHRo5dqJOvK7lDfxEAzvjY8kgkkAZVqiISrIiSBQ/wAWGws+3sQGHCscfF1zgAjznToeN3XdolhSfwADPI+x5HY8dAEbBGvYGyP06/frYs9A7VAmqCu1ZA6qpDbjzt8ds54GMYP1zpBucaxRuiDJZMMT3ByQMEnHbv8AX686mF/DGx01/wCqrsXjwrSfm+e4m1MP9X+TiFnzbkg+XoR40+ezrxHv31LNqpIq2ehJAK01Qk4QAbT7ZDeRjjgkHIIzgZ41Xv1TqnoOk7+ys2Z7fNTjnzOVhBPOf5hjjH1HnV3xTsA/yAf+ffUiYxx+/nPn66ox/v8A3jWvRo0dGjR0aNHRo0dGjUFH48fHmyHYDtVnUQEYjuTksdJJrWo83xS4yqW1rTWMXET5ej4n9x1H/qLA0tlhdRzFWK2QBld8Ui5B4P6gvHOTgasf+GevWl6vu0DnAqrQrH7/AJashOMcj9Mzc8Z7eeKVfMaleKa3H8aEfK0jePtvBk+OQMp2pUP+sk6YkgHYAAr+9S7JPEz5O+Pzj9KH5AHuBkBgO2QM8c9GLU6lVKnj9We2cnJP18cEnBzz3GmaczyEVW/M8UUXzi7LSx8cy1J6yTQ1Jo7t+zUnrztfjpSWYIa8ZeGp/USyzfmTVkhSZeg7XBbbLH1DW0sktfUmdKCOZg1OaIbYzO0BVxlnVtobII5H3qR+IXr6vul9boa1XNEtFsFFVXaSjVo6sXmKWVjSCtVgxigheL340AUSnBZhnHbdvuLUuY1+SHOcvyMDYSjjZcZxXAWanH7nJLV+VoJIa2VnhrYjHQ4yOvJbu/NDcv20mhWjTnFabwfdDXvWJMPfeFYFQrTU3s0xlLsQdp2+2oTg4IJI4XLc6rgtDFNJLJJ7k8xYbRI/uSyksxYrJLvPwGGOQTzleRrIOJZTs5juUw4blfCqaYwySpk+QXu4fcDkuRxgrwyGYS1ePf0arYkMu43irqkCMPKZl8ddbdPXUqSrHMu1WJBkaoqJygBOB8QMEnI4zsYYOBjX3CKRSqTUqmIMdzmSaTauMnKxhS2cYAULzk55Gsl7zdquFdtqmdzWJ7mZv/vmN4nzHt/xW7i3yGGyHGeWyM4xFx+RWsvlJcpioo5rurFRK5xVeCa3J+bsxwdL7NHHFITM7LIIpKeFsSxuj4JAEpYkgfI5GNpwWOBrXuFuSlkVqeWTeoinppoCYGFPUBio3I3uLImM9zwOW5ACedqOU/nrBgvRV4LdaM2JLVLH46nDcxcVyn+ZV6NCpUK3MbWkuX/zcJkLUYZks12WqsqNPqjp2lvtsmkip2S5W+KoqaOOiWCBKpmCBop1VQzEKCVwQSQQMdxInpd6jXPpLqSmp66v/NWK91NHRXSa5z1VXJb4o2cR1FHI0+6nYO6LKCWRo8koSoGn3ccVT8HiobfgQV1+sMFbakbDAg79ejsnZ+/UK0B2NgtyG27c4KlDhgfptbIOQMEEceLr3MI8IkTaQybvcXaylSNwYMO4K4O4HlcEcanS/BxwS5j6w+3LyLtMFhObZ7ZG1R6fGLlONtjfvzyQRd6AJA0D9pZ6aXcVkCjAQ4IH1A5z24JI7/6jVUvXSq9npmrjA2meajpxjyPzCStx4yqZ+/P14uOgaAH8ADp56prrXo0aOjRo6NGjo0aOjRqIz8a3GJc+im/kXUAYHuZwbIPMQT8UNr+r4mQnX2VnvQKx0T70Pv02OrqRqyyzxqpdkkikABwSFJB57dm8/tz21MPobXfkevKclgqz26uhOf5iBHMAPv8Awjjx5OQNUOO5maxtWzec3YIFg8pRPK6xQgEqSsjN+lELEaZyQAQT9z1XObpu4vWrHBBNPNJJiOGHmR2IICqDjk+Dkc+M9+i1H1PQ2+hevrKyCjoqSITVVVOwWCCJR83lbB2IMnLEYxxwNMJ5Zh+SZjP158JVTKVxDYjd62UwhQOMxlZEUeeSj8jLE8dxxrZksM4G2JFn6C1VJsFmp56f2qimtdNBNGxVJEkjVgV2s2d3ILYGGYkknXPXrC70dX1t1PV2ypSuoKy+11RS1KsrCogmk9wSo4IDRlnOxs/oAUZCjKr9q07w8Ayh5HxNcrg8yTArL4Y+1j7SV5Fs05pbNDKWZa1ilZUyQtJj7UckUk1cpLXs24WxUtuqaVmkjRlJXaVYKVfkEMXjdiu0k/TIxkjI0lJcamGRJIEKyIwaORWjyGGcHBcggjg4yCMjnnKivweLlucn5xzHjFOjnreTtZTPYPjknIqHGs9kZ5fnsW5q9HH5zKY+rkJS82QxuCgwyWmlsRVLeLEqypvx2paiQVE8QExcvKsTOElbdkFkALJn+bYRkk7fGiSreUmZkjRiS7ooflmyckDcMFhyBtUfsdYh3ZxfN+fZ29n5uMcv5NncgtevJl7eDrcWwGOxuPhjqY3DcR4qL9u3Rw+JpxQ1KMmWyTyiMCVsellntzbz0k8s3umGeWR19veU9mKNI87Ep4tzOUUEgl8FiM9zrVnqpWYvJ7gLMSWYKASFICooOVQJyFA7ZJ76wng/AudYrkOIt3+NZTH1q9+CeSew+OhRIY2JZZS99fGCxo1p2P8AphnkZg4UoVimo5laAmLaAyFmbAwCcnLE4Ab9PBzkkYxnTZrKobZct8cN5TvgjgZznHIO3PGRg6kd7fRYxsbjYjagE1KhQhsQmzVmmglFSIeEpgmmQPpfaJITr7gb6qvc7feaS/TpXUM1IKisqp4VaMorxNUylXi/zIQVIJGe5HAGujlg6jslx6VtotdzprpHQWy3UU8tNNHNJDNFQQBoqkRsyJPgHeu8kHBPfcbD/wCBhjK2b+pjmmRrkSxcT7RZidpkHlEtnM8g4/i0iD+x5mF5zpTvSNv7Hqbem6GSmtkc0wYM5CxhuPieSfHkAAYzjv4xVH1zu/5mlpqaNh7bV6gjnJMcUrfTGFyM892H2xa96X9Vp0dGjR0aNHRo0dGjR0aNRs/i64Bs/wDh7fUOsSlrGGwvGeRwkDZQYTmvHbdmT+dLSFryI9+JJ+2+sNQiyQTIyhgY2IDdsgZGf3x/vgF9+mk/sdb2E5x7tRLBn7y00yjP23Yz/wDfbXnF9zqz2rNoSEskiSRSIyEo6OCrAgEbUqxU6GyNH9tdMOohiWdZVULJFKrKVGCpGWDKR5zjOfv41f2hp0qqGekmRZaetppaeeNwGVo5omRwVI2kEMQR9CTnjOk6rZ/BDCYHC2eAcUsWoO3VjAz5S7iOIx5W1z6vksauBkLS5CnK+Hs08RSlyF4/Hl5cjfysbrNVuSxTy/TXS31qUsEctJJNJTKjoGQTGoGCChJGRtG4ndncCNpyBqjl36J6r6ejrauv6dutNbqSSYfn5qZRTxxe/tp5JJUdhHG0YiJdjxuGeMHWnIcnwXNZirksNwbBXsLQ5bzSa3xqD/00ww5LxDkvKsDyTF4mbJU84HxFvC0K2b41GyfLNWoT0xjbMcUk0EeGaniklZlgh4ediGSnXcjuhVW2vlQNjYHgkbiTnDbkqclAqAiORsgvGoaIye5t5bOQCQvOMccEjHVcfxccHd7jHJ8nh62Z4FS5dkcnkMLDiu3lARcUmydi3RwU2HrcoFTLSrVljoMksxhqxxBILcw0V1zSj82sp2GFZiWiQQDMOchNiv8AxCRjIycgEjOeckO8MsjRq8WdxXMROw5+JAYbuOMNkcedZnh8NxzGYahSucTGWlGP7i1+TGWPh8cnIcpyivCeEZjH35OVyWcBX4HK7SirW/LvYkxhkgitR5yWGlvU0EKqN8Yc4m9zckS5LjEbAM+V9s4/SQQFHBB1rzSARqm1Q4SZTgDlm5RtoJAIIAOwZP30qWNbt7mJa9/I9tH49es43HJkcnx3E8BuY2O1Q5XSpZjkPGcNZv3KtLKcs4Lh1hir34cliMLyqxm5YqkUeSN2srPU22nKmsNNRlxlWk/LoG2uF9yNGJYGSEYJIYK+7AG4nWKj6f6gv3umz2S53YQCOOre3Us1SIpM5Al9pGWJpYyMISGGAwA7n57a1LdWuK1ZLuPWS3bnmpRmBFhkntSMqTtVWOszxwmKNmgjSE+AEKJGFRYovVfRSXmom2wVIVxHTyAiRVjAGwRtjAQNk8DHJxz3uF6e9MVVn6GtFFUw1Ntq5Ypau4088bU85rKiZy/5iPgmRIkiRd3IjUKMZzq4X/h7eKvRn+oHOTRn5a+F7f4oyuv+aDk7mevvEW1+lfDGQSfHvYLbI+3S7R1H5miVuyiYhcY2naozt+ynj79yAcagL1kIjqbZCGOS9XJtORgKIkDkHPLZ457d+RzZn6z6hLR0aNHRo0dGjR0aNHRo00767eO/9V/Rt9TmBCebXeyXcJ411v8AzqPH7WQhYfv5JLVR1/uoP7dG3flc4yjrnjgFTk8g9tL/AEtU/lOpLHUA49q6UTE//Ezorfbsx15mPNGis2JSQT5OxA+/ipUtptaJHsn0PtrX946vZkpwxBGFJO77HGMc88Y/qDxga6Q9K1UU0cWSp3BcZyR8fP0zjn/6znDM+5WTSnJKINq8EweBkIVlmRgyH0yuArgMrIQwK+iCAwUemImlMU+XEgKyiQAfDwcD/MMfE8lSQecaz9RQUt19601MME1rqYXgr4Jd7LUQuRmN9uPieNwBHYcjvpNMZzarHbiu5KtUtZGuJwlubF45LUQljaCaNLkNWRWDRzSK6XqmQjPmz/GtgR2IpCWprYHDvBFVpjIPxWdfjgPv2hHwDyrD5HVZeqvS7oKqhWrs16TpqSWYRRQzmeegqAzMqn8tIwqoIpGQ+zUws8LDlQU5Ob0uTcfyMxvBasMtZprQMeA4PVEjz1ZqcnmsWDiEqfFYdkEiApZ8LaBbKK40Jr6kEyCSgr3lLOEEVLSEFmUggsCgGQfiW3DIPGmS/ore4oZ5jf8ApgU0cW9p2udUipEWVY22flpGy7YAAGCw2DLEaUnGZTBcivUY8nUxE8uPjlkrSz4XAVpQLrRM7fDRxdHFpITXRopXr3bKfGxqy0vOb5UXqHqm7Q0qvarZHHKDtFVVxJM8QH/UCUkISM8EDdKzjwAeV08+ifQ6wTXDb1V1PHOscMc5t9sklpkmjm3CMyXKoWNvkUO1KWMPkEmQAHS14ni9a60N2t8dpJIoFDpFAylIkWKJIxBGIvjjX0ixIg9EttizGHazq651lU3+MTSSVMI9ke6i06xx53BFjVY0XBOQMZAyMnnVtemelulOmbWKTpijgpLdUzfmWeGqkqRVTlFhM71Mk0xlcrGq/r2jnCg505bhFWDGflkliClCjPHJH4kkaKgo4Da9A/vsf39HctU8tbLGQzMrOMEksv25Bxg5GPAJz20j9RTQwxS/ID4kjGcE/UnBIwAMgeOSeNXGvwAqE0/ZHvlyqYFlzHdHC4arIVGzXwHFK9iRQ33I/N5iZiCTonY0G11N1PTrTUNFGoALRGRxgg73Y5JyTydo5wP+2qDeqla1bfotzZWGKVUBOdq++yd/OdnHA4GexGp++vvUY6OjRo6NGjo0aOjRo6NGk17yYV+SdpO5/Ho0Mr53t3zjDLGEDl3yfF8rSRQpB8iXmUBdHbEeuvpP1p2/Uuc9sZ8/b66z0spgqqacd4Z4ZRntmORX5/8A5/8AGvKO5ryaPF5m3RuApLTlauSTss1c/BL9/avG8bBg3/6PuAk3mxtP7iKF2sWAHcg889sfb9u3YAXb6P6ypkSH3nIwQxYsAOTkcfcYOABxkA5zpp/OmoZmzPI6hx5yeLq7qf1Esp/SQCdNoH9RB2Nb++Sz0jUMXtlQh9tVOQMKV4wp577efGfPfTzqL6JWkmppgY3lYjOC208gg88HBIxkceDnSPXMRX8QqSSRfclkcE+vt/qB8teRP+2/ZOunJHIxILAE4AAPbAxjIHcE9gfP3PLBrIbLLO8stBTzltxH/UUKWYBtgWRVTcBt7ZVcqrAZU7NfHCCVCZpZCrEg7VAQw0fPwH76BCsNBgCdkdfMq7wfgm5Q2wsuQhKkAgHGQMngcEYGkWG3WCm/MJBQGJKqOKCpC1VRuaGGdJkSPMpVCrLkN2BAJOSSVD4gKuMrV607STxVJLEqz2ZnmslZ7U1gPO58VLJ8pjCInxxoirGNAaRK2OUxHaqxsEb3VjUOpZzvcAtksCcMAeFHA4GnDbrf0/NJFBGks8dO6NRCtnmLwwwCQQIdtRhtglfdhhu5IIIzp5vCOZw0K1eKNFEUcQZQhDI3kxZmG2JPk5LMxJJZiSST6iy8dMLW1EkzEO7uGYyKDnAwFO0KowMAYAPGSc95ctfUFLQ0UFFFEI4qdSkSR5dFBZpHxucucu7NksxBJyTnOlkx3Olu3VdZCPMA+I8QdqoUfY7A9KNHWh/H26cPTXTq0pgiwCqMFJKtjJbce4I7Hbnn7eQGB1j1PGtPUyjcuEkwW2gE4AHGWwrdsj7jsMi9r+ArhWx/0HUstLF4Sco7sc/y6ykEGatWTB4aA7I/UqyY6yFb/cft1JNeuyZYhjbFEiLwBkAE5OPOT554551SnquqNVdS5P6YI1IzkhmaSRgccbsvzyfvznU1PWjptaOjRo6NGjo0aOjRo6NGvlv9LfvoE6/nXvR/kH7EfuOjRrzMPxivpFxnYr6xu9uH7VosnCpea5DOYrjjSeN/jqZ9Is5axNZpCqXcXVuZKePEkO9qtREFKZH+BZpHFJCzQUk0hB96FX5GSDyOBjABwcEYJxyPpMvStyWajjaRj7qxpG+UK5ZcgMCAQ24DJJHPOScHUIOWr5KtNLHarWIHVj8iSQSIP3U+yoHrX7Egn2CfR60hEFOSvjvtAA//AHUiU1dUwqwikYI55XIYEgcYyDgkHHHGP31iU7MpKsG/Vsgj9ta9fxsHX8g/vvr6wPoP7axy1pJy5c/XGcDnnI8f0H9sa4nylPMjQ2p+5IA3v3/ckgfx/b+OvrBx2OP24xrT/NFm4xgn/MckHyeeD9dblW1OykLIF8lI2D71r3rXtdH/AG/2/cY2jVhtIGPPA+n9v9P7ayrUSLysmMfQnI++RgfX6aUPBZe3XjRHtsHLajKSMf0EA+J/ZfeyAdtskH0SesIpIAAPbU4/+I+v7ePGvXrqw52zS7R8sq0hA+pOGA7k5xjnTp+y+C5BzPkeKxWODSy3LEcSFyTCgdlCyWWA8Y4oz+pjIyt4ggFiQCo0VMokCxx7QWA7cKcjnsBk8Dxz5A7NG91skiyGoqJHUBuN7NkDsFXcf3OeP216n/0adnOOdg/pc7G9quLw/Hj+Ndu+OvamYbnyGezdGPP8kytl/FWefJ53J37j+QHgsqRKFjjRFR6t2eqqC5yRK6A+MIdox/b/AGckwtVzNUVM0zd3djz4AOF/rtAz98/vpzXWvrX0dGjR0aNHRo0dGjR0aNBGwQf3Gv8Ano0aoqf4iLB4PjH1gZGzUgs4u3yvg/EeR2/6iJEpZW7NRnxs97D2NBQjtixWuQSkwi7VstFMhDQK4IJfcoaZGl3PGXQpgDZGGZlIxycZyeBwRydSn0XPTNbzBUxEsZ5FhqFYqFAG9opAuck7gUY4IXj6k1hMxc855UZ9lWPmhYOutej7LLr7kA/8Afb5yGHPk9j554/3++nyaZ0w0LSAcbcNgHdnJABJ7Y7cH6nHKfX8RibpZrNKHZGy6+UTAEb9mHwBHr+CDv8A4Nq9sDj+/wD51jzVjJ37cfqDxh+cd92Rj+o+p76xs8MwBbzUXlDHzKC/OUIP2UKyk69nxH7H7fx17xjH9MZ15+bqhxuiOOATEuePP0yfP+muXW4tgoWHjWsSFnA09uYr7H3YqANb19t/3/jrzav0/fk/+f3141VVP/OgI5GyIZ/7/wDfjOs8xWEw1Z4SKNVGDFiJNyHf7k/I771s72B7/wBievNqDvgf1/8A3XyWq3z/ABJCuO/CfuCEAxj98HP7ak4+hziUHKO93aPjN9LtbH8q55xjBJDjKfyZC/8A1DKVInrUIVQxrPZgaRa8swZPIgrHIfXW7SyiL3JMgbELKTgqWUZAPOByR3+vHONNS94Smkcksfbc9ztGO7t3PBxk9uOTzr1AMdRrYuhTxtKP4aePq16NWLZYRVqcKVq8ezsnwhiRdn2dbP36azEsxYnJYkk/Uk5J/vqJySSSe5JJ/cnOuZ15rzR0aNHRo0dGjR0aNHRo0dGjTGPrk/D0+nX6/eCVeJd68BahzuCiuDhncTjb1qXMuJS3AGnhp2rFexVyWHszRxTXcHlYLFKWSMWKv5K8FuLjkQuBteSJ1OVkjbaynH9iD5Ugg8ccZC3Zb/X2OV2pfalgmK/maOpT3KecKeCy8MrqCQskbK4BIzg41U479f4W36iuNZHK3Oyncjtr3q47K7nG4/keZy/aPnlSFPL4o4zZx/KeJXJ2DAu8mbx8fyICJY1/T0n1aXoqpo7jDGyZz71MJFkJHDSZlXBU/wCUjdnkDGpo6d9VumYB7d3sc0RZVVjE4qIlCjA2kr72OMHdG5x2OdRw82/AW/EJ4VMUu/S73hyUaIvmvAOT9tufRylf0l47GG5mGlEoBk/XHHMGI3Ev2Gh+f6xiBU0Vnq9uR7iz1NM0g+vtGOZIyfKq+0gdsk6dCdYemlwZpRdJ6BndyIpqUKEySwCuyIWUfpBKrj9P1JRG7+D59eUFqSKD6Q/rHEYYeO+1Uk8ZAB2vz181ZiYLr/4v4MCNEgHrG9460BUx2O1kgfIm4zDt2/8AakE/Xvz+/GyLv6XMuZepQWY5I9qnUHOMgEzKeM/zDP1H0yzjf4Mf16ZezDCPpF+rdFZlVxleJcY49UfZ0PksZ7ltJogD6Z3j8VU+WwPsJdeuJGJNqsUIJVf4tZWsQfLYjgTjB77sZ7Ddk6+Xv/pbTj436VjtOfZihbvztAUSc+SVPGe5IwH+do/8Oj9cnOrdGPL9rOEdicNI0bTcj7t91uPcjzccTKPklr8U7ZQ8rs/mFO3WtdyWLkb2jyoNHpYpZeoDzXVFtXnIjooZioGc4aWodmbAOBtUAgfLnTOvPW/QMUbpbY7rXy4xvdmjXcoGAA0cCAEcE4cDgjPfVn38PD8GfsX9EFnC9wuS5ibvZ3zxNUR4zmubxUWJ43wmSSo9Wc8D4p8978lfMM09Y8lzN3IZk1mK0FxAmsRyqPuSkfORmPnJOP2xxkfvk84zjUSXzqWe75hhp46Cjz/0YjukkxwpmlKgscE7goRWJJYMcETKgaGv49dfOmzrQ70dff8Abf8A/f8A86OB37edB7HHJwcDtk+Bnxk+ecd8HtpmD/U9zfj97l1PlvZTmtl8dl+RRcbbh+Gy2Roz4jB03NabM5TIV63jPm78UseLsY+g1eanFYtNAnxVFyjX/wAeq4WqlqbZVMY5ZhCKWKR1MUIODI7qCWlYH23jQq6AsqggCSwKejXT11gsE9h9ROnYY6232mS7jqC40FJUwV1zqAJFoKSkmmHs0FI0clZDV1SzQVEsFO0h31D0an9p/qF4v3UrYsUsRyjG5K/kORYiaCfjuZmxdO/xWV62UNnPx0BiqcFizDPDjEvWa9yzLDJVlrQXUesqhbrzT3AIEjnSRpaiIgwytGj0zFZMzhBEFZgRHkhmI2kK4Khmdb+ll66JmrWqq6z1dFS0VnuKSR3W3R101JfAHohFanqvz880cbxyVv5aGeGGN0qElkpWWdv/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgAAAQUAAwEBAAAAAAAAAAAAAAYHCAkKAwQFAQL/xAA2EAACAgIBAwMDAwIEBQUAAAABAgMEBQYRAAcSCBMhFCIxCRVBI1EyQmFxFiSBkaEKM1Kx0f/EAB0BAAEEAwEBAAAAAAAAAAAAAAAFBgcIAwQJAQL/xAA9EQACAQMDAgYABAMFBgcAAAABAgMEBREAEiEGMQcTFCJBUQgjMmEVQnEkM1KB8BYlU2KRoRdyorHB0fH/2gAMAwEAAhEDEQA/AN/HRo0dGjR0aNHRo0dGjR0aNHRo0dGjTJ+oDvvp/p27cZHuHt0eQyIS3Twuuaxg44bGx7lteVcxYbV9eqzywxTZHISLJLLPPJHTxmNrXstkJYqVGdw0euOtrD4fdOV3U3UVS1PQUYREjhQS1ldWTErS26305ZTU11W4KQxAhQA8srJFG7jaoqGquNVDRUUJnqahwkUYzgk/LMP0Ko9zOQQoBJB7aqjzm0+uz1KWbDZjuDhvTpouXgns4vSNIxOKz2UXFkoK8Wa3LN461kb2YWGQTWXxVPDUC/k1aAxKrdVZfxD8ffEmrRelqDp3w36araY1FDLfKOS93qsp8qS80iTw0UU7xt5q00EZAjUlJpc7tP1ui7NbaZ3vt1qKurVljlorRsVKdyDhXmmUtIARskdMBHO0qOAYx5ix6+/RnmbG36D3Pv8AeLS1Zctk9P2DFYfJjJUKjp+5VZpI8bWyNYNB/UV8ZcrXoWbyiWY/Z0z7j1x4z+GNWZ+p5Ke4o49XT33pyjFVaZqaKQJPFf7BOJq6lpuFeoqrVWeppkcSenVFLrrTdFQVdNPW9NVhrEg2LPa7hiKtBKbs00yr5cxxkIuzBI25LA5ut9Hfq/0D1g9tRuerQTa/suGmixu86Lkp45stquXlj92FWkVITcxWQjDy4zIiCITCOavNHFZryobT+EPi1afFWyz1VPD/AAy92uSOC92WSZZmpmmBekrqKYBDVWm4xBno6kxo6uktLOqzwOGY80DwMVZWHJBDja6MO6Ov8rL2PcEDIJGpb9S7rDo6NGjo0aOjRo6NGjo0aOjRpE75uNfS8I+QcRy3bD/TY6tKxVZrBUszuF+8w10HuS+HyeUjDKXDD5dwilj8fHyf2GtmlpmqpljGQO7kDsvb+gJJAGeM/tnUVcvvGWuTGzkcpLJYf+qEM7wQQFgGjSvBEyxxBV449tSw45ZieWKXU1hQABgGxuychcfGMfzH6+O57jTlpbamcLCNoOCSAzsB/iJGTnB+fjAAwNezo/e23jLoq5+zZt46EmK2pJtSxK6M1exTllYO6lwEaEzOCC4IRoyQm2q8zzSTUtYgE1M482RQVjaNwXilhYjEkbAFO5cOrKQMaz3XpyJIo6ikwnnDMaMQASpCujKoO0r+osVAwVwxBxpbZXv4rRD9kwrx8klrGUlR18PLhfar1X5JYfPk8xA/whWPz0vGrhAzkkHscHB+eSOR/wBNI8VklLfmyLj/AAx9wf3ZhgAf+U6jX3UpYzvPsOibFt0LyZPtzayl3U4K1iQYKK9m4a9bIWcrhJDJHftyU6qUal5ZY7ONrTXI6vKXbiTRL4i9C0PiBJYp7n5ok6ar5LnaIVqDJapqt40iZrtbmjAqwYlaKGVZUlpPOleLeJHR3fYYxYpJ56ch5ainemkeRMTxRvwzUkqn8qTHcsjCTABKjXpVJUm4RxHBfqF3eGAlfbmWPxLBgoWWGaEeP2gBSw+wAjjQFJKBAlVTw0dxpUecQURIEc0ICeZHJsWOemkp/wAo4VfKYx74xxr2dWiaTBeWnmIAkmyytG5zjBIdJI5NrAtksMndkjHaYwzPNJYMU0L1/beCbwKNHZLeZdWAXhURRw7fJY8fJUDXUwVsrS1BhqImpnDU9S8SwiCrklUyyoQoIjSNFUu3DszA5Ix8oXhRUj8yKRZAyyR7i4eEAqqkEnlmY5XHbnOM6qT1rd39Gf6oHb+7jYIsX2d9S+Om07Oo0clPHY3Kz368a5CA+YhmSLIftN8K3ma8RyElULHPLHJUqx3Og8IPHL19EqW7pituNNR1A8iZqaTpjqadKOcwjzMxxWnqWnguMc4Z4EimljSMK3Cd1dRy+fbq4+5rrSMlQquuI7jSAnsoA3zQY3IVDbiSSO2tOinkc/HPyDweRyCQf/I66XjOOe+mLr717o0dGjR0aNHRo1+JJI4o3lldI4okaSSSRgiRxopZ3d2IVUVQWZmICgEkgDo7kAAkkgAAZJJ4HA0aYPavUBrWFeeviIWy00LFDakc1qJkHIKxfa1iweeOPGONW/KOwK846maKkDCd/wA0Y/JjBaTJGQrZwobBBKgswHdRnSnSWqpqipACI38zH45G7H1kHkkDUXN73/Yd8ykNzIyQYmtVrGGlWSNnWIO5kkkNczAh5SB7jyyiRwkUfgqIOkaqqpp1BA9Em3KrIwkkZucsyIV2gjGFLbsgDGCTp1W63U9ENoBq5Gf8xlIjQY4VQ5ViQDke0NgkkMDxpBywU7dMWLOSvyTsjN7kVhI0IXjho4RHIsXJD8xlnKKF8mUt0jS0sEsYeonqWkKbt6TiIbtuCRGquoIxhgzNgYyTnGl6KapikCQQUyoCow8RkYg5GGfcrYyRgjaTz/khMhs1fFiZIrctmNZZH85mjeRuOAAxjAQ+C/arBRyeSwDEnpFluEFDCzLO8ql3ZdzozkpjAJRQCVIIBUe7uRknS4tulq5E8yFImMaLtjR1Rd36iock+7OcE8YABx3TWS7vXrAHlLHDErBeI2CEqoICqp5fnxA/tz88cAfKPL1bNMM7ljQFlxuVWO3jGM53EDPYd+cAaWKbpOKPujSNjOWBxk8kkjjA5xnj57672sdw5rdkoZg5RkA+WZgrFh5L/deBwwPH3A8fgdKNruslTIwZ8nIIwcjacAOM8lSeCfg5x+/3cLFFBECq7QwycjABAB2kgHnOSOTwOc509Gt5jHZe7dfLSJUmpvUhrF7Zja6zQSTFykZU8RpIkaB5QskbEsgPiOvuSC0XGvnivCqjUssXpT6t4XmcoxckwOkgBjYI8bSBZEHvQgDTaudHVUtLSNRb5knWVplFPvWACQKoDMrAlnDHcE9jcK2CRpfRLiCrRrFEyMPbI5ZgU+OF5ZmPH2rx+eeODz88qkFn6ahRoobbShJY/KcFN26IY9hLFiyr8c8fGM6bEjVxYM0khIYsp3YYP2JAAAB/+u2og+sX0ZVPVlr+jHB7zJoO9drdtx+56hk58a+SxF65ip47iYTLinapZPH07c9esVyuLlns49kZ/oLsbNA0ZeJvgja/ESMVtsr2s99pLFd7LQGRFntk0NwSNoo6qPaZYTTVESTU80O/y2L5iYchKuUss9HHR1PMUddDXpIATKssftYNhkLLIMBxuDAqpUkgqbjNC2yvsOHoV7DmHPU8ZRXMUpDyVuJWhiuTVJCeLdI2xKsNpQvuKUd44zIqmf7TTVtNaLWlwKPWJQUcVZJG29GrIqaKOqKttXcpmWQq2BuXBwO2mnMmyRhxt3ErjtgnK8dwcY4PI0vOt7WLR0aNHRo0dGjXmZrFwZvE5LEWXljgyVKxSlkgbwmjWxE0ZkiYgqJIyQ6eQZCQA6shZT6pKsGHdSCP6g5GvVbaysADgg4IyDz2IyMg/PIOO3Oqv+5Gi5TttvUtOTPRWJreObI46TIRTVMfer2ZnhmtVmaSSGpkoZo2gtwCeSNDIkkMQSRSrWu09Ml1LG4mirJaZpRFUIyUc4LFXljnI8pZlcbXRpI2G5SAQ2RJFpmautXtoRLTw1Cws8JV6mBgFZUkUAO8DA7kbYc4ZScggsxs13bY6jmlgZ8pIkyPFLjppMhDL9w9wiWk8rhlTy8QUeN2b+oeByrPva3sU7zUFIK5kdZFemqZKiJiWG8tJSibYfLyArBlLsA52jcHnZVtHnKlXWLSq0bI4qIxCy+38tQk/lh1LEbmypUD25BwWQ2nf7+IqzNbxWz15G8lnV47lWLjj5jHjQkRR9qgNG4b5IJ+ODF3UN/u9HTzLJa73HJImHHmyU8Krg/zmlbCcDcyHcCTnnvJFjsdDUyJ5NZapEQgqQscr54O4D1CksCSNrDb7Rxjs3ev7ou1Y7IRV7wx1ylPZlsVsjDkIk5nctHBTsPCzSwiML4s/LmR2LBeQOmdaLpW1drmpvULT1NPNPUzRTLVvEhqHLpTU9S8TPJFGi4DOA+4sxUBhhyXW1xUNdBM9MZ4Zoooo5ad6c7vJUK0kkYkAWRnYs4A2gBcZwRpuNm3CXBzJHcv1fJwSwSaUwxMW4CmaSKNA5UkFS3PIJCkcdMq7dexdOSRR186tI7ljsE7QoTkKrStEoVwBuAJHfaASSQ47bZUr1aSGF1VSMFkVXZSo5CK3Kg5GQMDOSQcjRi+/Os6s6HI5yuLEkYEVehFbyd525HCivUi5H5DEySp8j+AeevV/EV0tZaeZ1mmrJ0QARW+nqqyoLg52kRoI19xyS0g+MgYxrak8Pa27HbHTkRKwYvM8VPAoHBYPIx5+PZGwAJyOAdOvhu8WT2vJ47KYK3dxGPrQS1Jq2Vjjkt5WzKleT66xik8EgrssXtKUktW4ZABOxU8Ij/+Kd+63qLV1D09T3e200b1FHPRXGnjeatldYZI6qS2jbincL5azRvNUQyFRLlWJCdU9J26y09RQXGOnrWlKTRS0blY6ONWkU04qnb3OpYuRiOKTkoBg5kzrW5dwpjF46tlclC/AFmlRljrcEDjzlsNEifHz/bggfIHU49L3LxUrXQP0VXVFOQD6ryWt8IAH6nasmj2rt7ELt44BGMxDfKHouFX/wB+U8Mi7vyXmWaTIyWQLAsm4g8HPPf5IIkrrV3YrEQNyCPEyFfmO9agV0HwW8okf3fgfcWUBOB8MTyerDWGGvCKbpNRUU5BLU61iVMy+3kFYzgYwdxJIH2RxqILx6IswohUVcZbiYQOiZ7DDMB34AHBJ4xyAZb9nNN+npVNytXrNqfKVJ5KEckTV1WndeM+/IjpG5WaOCI04vbRI65WVleWUuHfDUxzUsQgdpIHVZUd12lgwOGUMAwRhhlJCkg5AAONMe47kqZIXRUkhcpIFYMAy8FcqWBKfpYhj7g3bT8dGtDR0aNHRo0dGjR0aNQn9bQTG6dp2zGGNv27Z5sVZlKr5ClmcVaYoZP8QU3KFV/HnxPiT4lgD1HPiJXQWmls1yqVT0ouyUFU7KDshuEEkYbJHCCZImfJA75/aRvDiB664XK3ozCSW3+qiVTyZKSaMjCngkxyyAZ+CeRzqknuZ3ATDXLNvGyXK7lD7q0WsRSlTyVKS46SOYkMeV4jY8n7QByTVrxBuv8ABquaptc1VBvUsRRPURu2QDvjelZXJBCgHknjnB5tV0lYhcKaKKtjglXPtFQsUiYHfetRGwAIHYtjI+8ZZvP98+5OIpxtS7gbXSaSsJFqS56eysaMit4tWyXvxjxHjysiEj8MP8QEN3nxR8Q7TT76HrK/0ymMSCGS4moWNcbgHjr45kXgglWTC4IbPI09aTobpWqnZZ+nLVNsfaZkoY4cn9O5ZKZozgnsV5PxwQSxDer3u7DkLEGT26fJ1nkYFL+uatcSL7hx7Qmw5T44AQJynBPwQTxD8H4lfGZamZqvqamuNG0sq+RWWTp6WSNQSVKPHbR7hgD5DqcDvw7m8Jui2gRqW0vTzBR7obndED5GCGHrDn9WcHucYAIOu1Z9TudtLHJes4iQj5AbR9Mcct8/5cID/APyAR+fjnrYb8RnWtXkVDWuZwD7ZemLHIAcDILCjXIBzghSNeQeGFrgJWJK9BuzlLxcwVx9f2kHB+O5POSedfuj6kdyuuYsZcxkKrwC0Gm6nEwHJHJYYfleAACQPt+Bzx+WZevxEeKwZxTV/T1vgOQgh6U6eMrfTM0ttk5I5wORjgngaWIfDTp2MB6mKvlY91kvV1KnkEABawf1IJxjgDUgNA37vPsjxfTbpkKiAHwWnRxFKTmQghlFLFRSDj4CsJFZePFW4+Os3S3i/wCP19qFlh60qqCnViqLQWezW6aXJOGzRWmKQx5DbSZA5OCvGSW9fOk+gKBD59jhqGPJ9VWV9Sq7Qc8VFbInPJKBSDkEgYxp+ln7lwBLGwbTteUhiPlI93L5H2QPjn+j9VwV+PwVC8H4A/AlaPqLxQqpUk6i6r6tuMRKl/WXa4CALuAYeUswTGedoUKMdhpleh6PRSLXZrHSSNkIIKGl83kEf3jRl888ENwe5IB1LLtZt+BOPp46xMJrObvY3C16cfzYvS5G/UqtChDPIEZJ/GaRmAEbMOS7KDePwfulsqbEIZpt09UqUvDf2iZ5SiOgZmeQFlchizZALHvqvfXtBWRVrTxxbY6VZaknGI41iRnDYCqhIIyqgckAnPOrrIY0iijiiRY4olEUcaKFRI4x4IiqAAqqqgKAAAAAB1ZlVVVCqAqqNoAAAAXgAAcAAAAD4AA1XAkkkkliTkk9yTySSe5+z8nnXJ19a80dGjR0aNHRo0dGjUb/AFZatBtPYrdY5XaOXB1q+zU2UeQFjDTiRldfyUkqTWoyQeQXDAfaQ0c+LFqS7dA9RQsdr09J66FsZCy0bCUEjuAU8xSRyobI5Gnv4dXF7Z1jZplAZZ52opVxktFVKYyB/R9jYwc7ccdxmm7i6zmrE8tjHTS+7GzBfbYsftBAK/7g/bxyf44B+euXd26xv0c3p3keoMJ8qKRWL5jRgqg/qwSBjJ5JxnHGL+2hKFEBZQiuuSp4HPckDAB78c8D+gMWc9Q3SSWxjblBJJLEbQmaavIbKrz8NEx4ZXT8g/jgnnkHkRX1b1ZfqhJqBrQJDVwFBO1NKZVRjhgoJG2RTjaxGCrAlcA6eVFHb12TJUEKjBiiyYRyAc5yACMj63Aj60n7fZfKwUI8hk4ZkaRS6xlSGHPJT3ASxUgAELwPIn/Lx8wxcK+42YIamhlpoZSoDSYbaTnAlC8xlz2DZIA+yMueju9LI3lQyKzR5BGcg4wDtOOTlsE/1zyOGN2jU5oLAjCuF8lHAJ4Y+R54IA4Px8k8gAcD+4XrReI5oy3tL7fj4PxnkggZIAHPHb40qGvC7sEDAOTz89iRgYxzj7z2HbTodtNdFKWJ5lPhKAp5+fz/AH5/sfg8gAHxJ/HTttvS73uZKyujcxBg0EG0HcGx75AcYxgkI2Rghh30g1932qUjb3D9RHf7IB+Af2wT++dWT9jceBeqt4stVWQST+2vKfYzr5LI8YMZ4I9wE/B4UEn4sn4a9ILJdKdGiMNKknvnMaMqsoJjDK7xqFbYQzAkgH2rnlYb60umKSQ5DTMpKxhj7/cATuVWywBzjGM/OBzPfKYjFy6tlJbRh8YcdNPI0aqqRkwsE9vyJYuZAPFWPkFJbkfAa11x6JtsdkuE86QKIaF53kSIeWiiNvLKFmLAs6gBHO4c8nHMAU96qv4lTRxebl6lYkViSzEEbtwX4CEgsOCc/OQG59HOojaO+WlVb4dsfisrd2YLIrAyy4KnPkaSfd5KYjcr15HVT+Ywh+G6bvgFRPU32BJFZaemmmq4wwIZmiiZ4fsBc4cgE4YBc/av4s13pOnK148CaojgpGKkHAnlWOXBBzny9wyQD7s851fyPx/9/wC/89XaAx/3/wC/OqkaOvdGjo0aOjRo6NGjo0ab7uxQGT7YdwqJHJs6XsqKOOeXXD25EHH+rooH+vSB1VT+q6av9P8A8azXNAP+Y0cxXn4wRx8feljp+Y099s0448q6UD5+gKqLJ/yBzrP/ANtbGFs5y7TyNSvYkYLNEZ0WTn4+4AOrfd93II4+TyD/ACOZnhzPZH6juNDc6WkmnEhaF54kcbQSCoDAjO4Z4Pf7Izq7vVkVwjt9PUU08safpcRsV75K+5CM/wDNkAcHJwOJB5bSdUvVUs/tGPMoj5jk+mi81+Pgq5Q8cEHgj/KSPkcgWC6h6W6frqESrbqLcIgYpFhjBTcMghsZUfYPYdjqL6C+XWCoMRqqjbvJdTI+DjBPA/VkHPb/AC1FzuVqGNdJUjij+3yUxgqPtbnjlCPIeJIPPA/vz+QKM+K/S9FG0n9mV4WlMTB48owfKgHKhc7sAHIPAPxzN3St4nO3c5LHBBBO8Fe+cknHJznI55B1XX3S1QYidrSVTLGj+TFhz7aljyeAOOOftDEng/HySOq49PVlDYOoJLfWUvnRe1opJmMhijZ+BtJAbZgAEjcVxkHUqieWrp1kSQBhgMFJ547Hk5OSfofOPjXg6Jm6TzxxL7ayiQIUY8qFPKsCvPPHB+T8/H446t/0rJbq6GGamERRmUDkEEEgNn5yOPaB8E6bFwlmjMgZmXAJBBOQQC4Pfk8fWfkdtWadosbjZaNURMoZVTgk8Nx+fhiASOSfz93A4PxwOrf9AdNWqajiYbN4O4H+ZT7mBVh2BY8c4AyCMHGoN6vvFUkzZJCEvjAOMnAyR2+ueBnP1nUjMzaWxjv2NHVoJkQ3m5+ZAgHjD5H+CVDNxySAAPH+XD1rcoUhTpeF1ljq44zcTuJfylICQE/UjAs+BkqMYGc6ZVohczG7SqQ8bOKYDIwWLfm7SMAgcLjvydSB9HGsUqvdiS3WUcUdTzVhRwT7bzWMbRAUj/5xzyAhuePAgcfgOvwnsNFQVk1RTIVC0rjB5VTIY1wp44IzxjnOeRpqeJNzqKi1JDKxPmVkXP8Ai2rLJhhj4YcHPPHGe1qXU9ahDR0aNHRo0dGjR0aNHRo15ecpjIYbK0GHK3cbfqEcc8izTnhI4/nkP+P5/HWvVxefS1MB7TU80R+f7yNk7Hg9/nWanl8iogmzgxTRSgj4KSKw+vkfY1lyxs+RxW6J7aMphtNWmBYoqhJPakLPz/T8WBPJ+Pg88AfbxdnnuFo8QZWp1KqlbLBKzMY0UJOyli3AG0KS27I57E66RyRU9b0+u9h+ZTpKnAZirRhl2jtj3cYGR21LTae42udvdEu7ft2Yp4nF4+jPKrXrcNdshcjqT2auIxxlYG5lsnJXNXHUoVknszyALGyLIRc+1z1NwttLBTrJJUVEUaCJQ0uAwT3HAYhEHLtjhcnPOBXe91FHaGqayskjighZve5CGRwrMsMYxkyy7SsaAEseOwJFPHcz9Sbt41+JdU0bNZW/9TJZNbLXo6gFyKOOpXxssePw+Qs34klWwLn09oJNMFemJgI2LQ6o8HV6mqKNr7eKOnpKG409XPS0cFRVSVhgMpMAJeKJMu4w5LsoVlC5xhs0XjRSW1GjtNrqJ6ieBokkqJogsDsVBwIoneQqVYMFYZ42ZHOo22/Uh6h+5Jmlw3pxyNjHwiR1a1TvYuSWAV5UZwdh2jCCwJGkk9mb6cpGwiYqCCVYtX+DrpC61K1TdSdUU9Q6FWkgtNtjjYNtcxhKiViIt6KcbsjJJyTw6bf48dZMM0/S9HJEhBCzzVMZ+g7M80ZLgMcZQe3IABOouSeqmlru3XMftOpZDT85h764zYKErX6pxGXUu8+NneSrdxRsr5RyRLNmYFesHn991VTIUf4ZbhYZZ5OnOu09XTzbI6C+WuWip3jVV2pUVVFJVoskjZO8QAY3FG/UFWE/ETTO4p750tPCFASqnoa0SPFMZDvUQ1AVWVV4VPPBYYyOw1bt6Su/2N7p46aTX8wleSmYI1pX7OMOQuV5K3vvex0NHJXlt067LNWtzRyFqluCWK1HXIT3Fa63zxA8LRb6G70dHO1ypPNgulqkqay0xH1DQeQ1Y9NAvqgybzA4DrGyHBzwvWq99IdfRVVTapJ1ekqPLkoq/wAinrJAIVlE0cEc00j04yUaRfYHVgcZGrFsRdYxqeXYlQWdiefIeJ8v+p/j+D+PnjnY6autfdap66qd5aioKvK7HBLYJ9uchVC8KvwBgftiuNLDCixIFVE4VFBAwOR27cn7+j8nU/vRNCbG27rfI5FTW8XUDcfAe9lJZnH+nktIf78H4+OrleFsbGnqpGxuWKAYPfMjMTx3GNhA+9QJ4lMFit8Yzh6mof8AbMaKufon805+uNWP9S5qJdHRo0dGjR0aNHRo0dGjX5YcjgjkEgf9CQD/AOCf/wAP468IyMfuP+xz/ofPbR/rjWc7uZqlXW9l2xVVUsVtnz6M4LE8RZe4IlX4CpHHDxGVUsXfl28Bwp5XeMvS0PT1yvNREFWdrpXzSSBm3MTVyyRqoY7VjjiPlnbku4ZyAMBr4dG3iS7W21K+TH/DqIAEYBPpo1LnOSxkf3A9kH3ydVHfqbd8Noxulduu3WNm8NdyUWSz165GGE1rM1rUuErQNMp841xOJs3ZUrAqlqxmo7Upc4+BTK/4frpDd+nbpcZqlJ6y2SQW6OMSEvBBVxNIZZAD+qTyjChOE4yDngV9/EOa63Vlrt0MLpRXCOeskk24E1VDIYRGr9wYo2LkA5LTBmyVGal+yvcWPS+4NXOZq3+2YqXD5zCZDLJjFykuNqZqi1YTwuLmNs4qdgghhzmNyVC/ipJVsQ2fYFmNpkp5kSrV2JEa+arts3bA6sgc4I24Lf3gO5Mlg2eDBdhqmoqtC+6ONoJYJHSMSFFlReVyUMfYASo6NGSMNjdrn33X89Q7uS7l6esvi94wVPKVsjp291qVBrOOsNSiluL3HrbhPlquuX8PcmsRZKXZ7UmFjq+1fpXrMUsUpz1ilJYZ6Bo50j2MKhSW2McK3nmV3VQrHaTkoAQd3bS76WoFzae11CzwGTdSzqFGzCbmFYk5dYpI2Lh97FNoLKSBrt+r3vptO9R/8MYezFd0O7rna/HbbuMeHg1/Bd0e5fb6leGwb5pOCNLGq9a7lspJiV2fH0FfLYLCUoPqa2OkMEytW1zughVVaER0/nTsBElRUREuxhVgCy5dR5wUjYMblUHep3yvmqS0auWpnjpUllEQiWpqYIyslTHEwTKuxx5qqBJGi8heD4Xoi7pZ/tn3W1i3jIZb5t5WrQehIZLCy1cmz47LVYq5LCBshjrs3/MwIllMlUxDyNJAs8Ls/r2zUnU/RPUVorZvIjgoJr5SVXmbI6S4WSGWtp5JFJ2GGYLJBMOMrIG7gYxdA3er6d6ustdTRioaeuhtc1MVLmelucqUlRGgz7ZQGDxsP0ug4OtYWu5uQ+Qk8pY4y4YqB+Fbjy5HIXkAHjlgOf5HyaueHNymlSAuheEIjY7HJHJJUcYByDz3APfVy7/RxoWVWAYMyhjxnGRjHwcc9wMjjnvap6DI4bWI7kZiPhhNltfxiMflk+joXbciFvk8n6+JmHx8hTxzx1f7wuWN7RU1MfaWWKMDOSFjjJ5xxyZCeP647arD4o746+20zZASnnlxjAJllRQRgkdo8Z/0bAepP1Fujo0aOjRo6NGjo0aOjRoP+v8AHz/26NGs53qt2CHEd3e6uFDhDU3TPNGhIPC3JvrowFJB+UsKQAPkEccE9cyfxO1y0996hppCVWGolfueVlUSr2B49wySMnkA/GrzeEdE0/Tlhqv+JQQLnBI/KLREDPOfy+ee4OO2NZxfVLFNtPdvK0N/7gYWHAYfLdvItHoZ/TquYlqUO6Nu7S/bklxl7EXLAx+wYTKx17eQZq1aq9QX7y+YaZyfhNXpq7eFVXe7PbIrRcKi9yWvqWQipqDc7ha3eOirmWeodIHelqkLw04jjWRndwONQ14+QXBOvf4beLtHVW+npqGqsMNRTwn0dLeWYVFKHh8l5Vjq6aXZJIXYx7AzjnTB5LXsRqGLbOV6On3rtVtVF6LCYzY67pXzl/fsPk7TTUtyqmXGa9sOhx4zIzT1Y6LPnMbZ5h4gW3Pq0ckUztlGaKoVSRHKMK88kbMNk6DbEY0JIBBD4x3JiGop6elhSWKKiYvHA7LHHMmVmWqVyxFSdyJJTeU24BdzqzAcbu/itkyWvd08L22wmD1Kve2va9b1T/jPG4bbmwtyxs9TCJDmsBlYtujubBSoxZ55fqknpWXrVFuxSVpbSRVc9bRRVQp7fV00csNTPRs7qkqQu4np6qIo6TBnWOREeQFgZCnuySQclHcaq33NaWiWmjd5VpvVxpJ5f9ogSMyxM0pL7VlYBjsZQA/B0j7uiJsZk2DYdT1q5nMpj+4N+C1ncp3iyF+1U7d7DitdTE5W9kO40kuL2Hb/AN0hu6TrjpOL9STGLHNFBl61iFagoEqX3ywRySPJLsMnq8fkso/Mb1CYZwwaJACpABIOeNCYllaaSKFXMdS+XaqeTbTSLGEdnmO2aZWDxRgktkZIDZCsodujoFi1vWjU9HzFbXFobNruVwEm1yLl8J+w5ff8ZsF+jsHcNEwONiw+suuXx+XlOWp7Ks+s0sZl7dCWeRbfp6iraGuoaiGlnorhbqqiqdhnUSUlbBOk2WaoJi/s6SBpGG9ZdqorsOE+Spq7dU09womhM9BV01dSOgZg7wYq4JWVpc4VkCyROQTJ+VzkbtBXabY9hl0fVJ9zvU7m3ZDBY7IbDNi6UeIoR5PJV0vz1KdKGRxXr482RQQSSPJL9MZpWMkh4oHabhZYeobnR9OwPRWaC4z0tupzVSzyR01NKYEeSeUl5PNMZkbeSF3hR7VGr5U1Jd5bHbKm+SRVN1moIKmvmSCKCI1NRGs7rHAi7I1iDrECDlthdjliNX1+gDHR1uzeZyKcn923vMShmPLMtPH4mmOT/PDI688/J5PweQOhvhZSim6UhOc+fUzTA5ySpWNVDfuuCOO3AzqqHirUGbqZIyMent1NHgY25Z5pMjH2HBP12+NTn6kjUaaOjRo6NGjo0aOjRo6NGvh/B/2PRo1li/UNy/8Awp6y+5+OlcLDfi13PwxM3Ck5LU8OS6jgjkzQyyHn555PXMH8YUDW3qW71pRjFNRUVWGA5LPTJENvYEmRAoJJ7ngnXQXwD2V/h/ZCADJBNX0bkDP91XTsM/uFkUZwR2zxnVfmYwGgbflf3nZtP1LYb/sJSNzMYLG5C79Ehdo6aW7NeWeGOP3JGgETj2JJDLH4uPIc9LJ4heI3SUNRT9MdX9Q9P0tRVy170drr5aai9XKVDytSAmFnYRxq5eNvMEYVwfmarp0H0j1A6TX3py0XapWBKYVVwoYaipWBGdliSdkEiojSSFAr+wsSuDzqvbun6T+4OCSTP9vdnxe4Uxbkml1bJa5q0OY/a/qhIMfT/csNagslKirX90ZCS1PYja0tGd2NQ9APDn8ZXSd+ko7T17Z7j0lVGClgqOpKYU94slVUxQRw1FTVU8VFFXW1qmRWnkaKKrp4ncgoqANqnvWP4YerLd6qu6QuFH1DCk8s6WOeCKguUdI8zPFT08srS01WIEKxBXeCWZULKXcldQ8ztPuVirpr2O3NijKkp9+ld7XdulWGNvqfH6BrGhIY0EjUSqeNkmJbKBklaDwtfQ9f+G9yiiqaDrnpaqp2IKS/xuyIVQjLYRxTtHLkB8NGhGCGQA6gmo6C8RqKWSGp6Lv8UynGP9nqiRVYEqwSRaV0K5wF2sc44JJ0r9d7edwt0vVHp4HEaniT5yZG5tfbvtkhszo0YpyVJk0HGymSGFZUdIMbfsf+0/v0o1VZmr1r49eF3RsAamu56nrwTm19OeiuMhYLmOSouHlpbqRBggsZJpCWGyI7SdPrpDwH8T+rJMz2YdOUQJJuF/pPRqckgJBSpD6yqcDnakKrxzINWBdqu0narC62cbtuodvNvzFmdmu5SXUcRTV6yiAVKUcVWljgY4Hjey8n0sHv3Z5ZxDF4xIlFPEz8UXiteupHruirpcuhunY6WlpoLFAtqrHeWFW9TV1labdvkmrHbedhVIUVI0GV3m1HSX4dOjLFZI6PqW2Wzqq8tPUT1F1mgqIFKSFRBTQU6zqscNOqkZYFpXZpGIJCic+B36tVirKsqxQwrFBHGr8CNIokSONOSQ3EYVQT5cBfEny563fCKWsvU8dXLukmkkVqhshi08rebK7Ee0u7NlgAMA/pABw7OoKBKaEwwoEjRBGigDaEjARQM+7CKFA/YfzYOtQv6fymf0tdvswVZTsFnaswPIcFo5dmyVKF+D+Q8FCNgRypUggkcdddehqb0vStojPBNOXbI5JeRueP2A1z18S33daXePj8g00BwcgMlLAzKP23Occ5+8HU0OnbpiaOjRo6NGjo0aOjRo6NGjo0aypfrbaVsWueozXu42JgntY/YtC11Lr1o2leldwU+RxxFmKMGRq1yoIgsyqQjwyo5X+n5UZ/GJ0jWXCgobvTwPUU09IKOqEKl5ITTzl8sq5baUdHVtpUFW3EfF6vwtXaGp6drrQzBZ6C6zzxlnwHiq4YXwo/xLIrgjPIdSDwc1GYvuCyhWmDK6/4l8j5A/B8eOB/fjg8H4I/ykDl7V9M8sqDsSMkY7HncCB9Hg4P3gDGrkxwb0UhRkYzg5z/AE+OPvH18nTY9yIIttfJT1tp2bX4cu1V8tXw80FZsgKkVOusMt5BFkFqGGhGkVUWilEzZCbHfSz5CxL1IfRt5fp6C308/T9nvEts89aCeuEknpRPLUTmRKY+ZS+f5lS5knEIepWKmjqzPHTxIGneOgkvclWy3m6WyO4NE1ZFQtHGZ1iihhCPONlQItkK7IxJiIvO0Jjed20wV6XbKq38Db7pbPk6t/XclTr0zGiJjorFqGGpbbJwTxXHu04AtQEzQzgTTS1p6rMrCS466wVRprrF0HZKKoprvRVc9SJZC1Y0EMrzwmkkhen8iolYzklHi3oiukqqQSDoe809PW0cnXV6qqKotlVb6eGaCFJKRpnQwVCVMMyTtJTQp5KtuWQozFXQsSetWwWdtVKuTfuBncbNQxuPxGUyePjigfMyVIr7QRPA9mZInnMwLrBzIVqq8k7TLFNFkPUNthlqacdIWqvpqmvqq6jpax3kjthqpKdnKSRRRltggl2Gbcv58ixxLGWSTVquj66T+HqvVd1gr47bS0FdU0UUMTXKOj9SDNNHJJIsKM1RFvWIqzeSm52fZJG7WvZ7JQ06NOKxeyMlatXrtcnHNq28UaxtZnKAIJpivnIQQvkxPLceXUf19k/idfUy01AkRqaiaVaSlQtDAsjlhBF9Rx7giAgcD9I4064qP0dJBTTVD1LQQRxPVT486Zo0CtJMQCvmSEFnIBGTnJxu1IjtxjM7seUx1Oxfjx8U1hA8krfUzIHIVfGujhS4HJCvKoJ+Dzzx1ZTwS6Qq6WSlpp4kpi1TuK4VnVZGGxvYCrMAMnkdwMjHEc9YVEMNPUTqgcJEx+QDtU59wHycnP8AXByMa3Nel/Uqei+nrs9qmPMzVcRoWARJLBBnmltVRes2JvFVX3bFm1LO4VQqtIQo8QOunNHRx2+kpqGLJSlgihBbGSUQBmOOPc2Tx965c9TV8l06gvFfMFElTcKl2CZ2qBIUVVzzhVUKM/Wn462dIejo0aOjRo6NGjo0aOjRo6NGqUf1l+20eV7daN3GqZOGjk8XfuarLXuEQ1L9a3DNlaYW5x41bUMsVxU+oZa9hJijSRSJH5xP4x2drn0lLMkqRyUUoYLIdokSZdjIHIwr+0bd7BWJ25BOdWS/DZe2oupa+0tC0kNbTJUh48loXp5FQlk3e+J1kXeVVnTaCFIJxk62PO5HD3JoL9PyUM3BsxKwPBIJinQMrqeftKu3PAPypB65JdVdPGO+1ZfzaeSWQPgcB2yQT7T5cg4HuQnknd310itzB4EaIrjABzwQMf4e4+MEgc8c84bbKbeJVZI61aLngs3DSN8H/KPgD4HwT5f7EfnVo7KUYFpZW5O0DAzxnJIAJGewAx375GlPcccYUk4+c47fOAT2I4B403MmVcK4sPDLK8kjO8Vf2EZPeLV0ZSZAzRRsili6iV1MojXlQHT6RDgQI8SBEVUaYyNkptkYtheGZSwXb7FJQPtyNYXkwDhi24578Mfkk4+D95/b5124tinatXo+arVrzTTRxLHHH/WseAeWRlUGaQqkaIzFjHGvghUFvLyWCRoliYjYjM2AACzsRlmYDLEAALuJ2jIXAJGtYbFkeXb+ZIqIWJJIRMlUXjCrklmAxubk5xwsMFmiJERpOSxULweSeeDwo/3+Cfz9o+P56Uun44Y6kq/sLMDgjJfDcjbnkDO8g54B7YI1pV53Ahfd7WyecDgYDZwPbnnJ5+dT69K2nZPfe5mj6+bMWJr5vZcJiDctv4Te3fv16rvQofNi9YRZWeNPFK/K+U1iJQebj+DtlmrbrQthYYdySGSXALLH7sRxn3yZAxnCqo5LagfxOu8dqsF1qcNO8VLOVij/AEkqjkeZITiJAQCxyzE8Kjd9bucHiauBw2JwdHzFLDY2jiqYkbyk+lx1WKnB5sAPJzFChduByxJ4+ernk5JJ+ST/AKz9a5nySNNJJK+N8sjyNgEDc7FmIBJOCSSMk8Hue59TrzXxo6NGjo0aOjRo6NGjo0aOjRqsb9XHW6eZ9Gu45qzZtVX0zPa5noZoYDPV/wCbuNgJY8iF++Gm6ZYcWI+XitCuPF0kZCzPEGk9b0heoRIIytN5qsVLKWjYYVschWyQWH6c55HBl/wMuLUHiLaAEWRayOqpXUttbBiMytGfl1aEHaeGXcODgjDVuGeuVb1hEsSfTsxA9qVpax4JHIUloxyfypVWB8uVB5HXKbqa3Fr5VQyNu2lCVLNhWJbLJgkEkch175IIB4PUu2VAFLGyKdrYIZR89+Tk445w3fAx+7V3didifMQsQeSzRqPkfkcp4jn/AF+OD/HWnT2xRgLvGR2DNjGOD7snHbA/z440otV/JCg84yCckdux4/8A3B40l4sxXV7HstXZDYdXiiXyEVngGZZHMjN5lirMjMBGpUAeJ5K3LRTlYfNEit5SlGkJ98XIjKrtChAAQCoO/BPca1mq0HG1ckDsp7fYw2T/AFP/AMjXNHn1Vwojh/PifJfL454/BLfjn+QPxx/PPWE28lclpBwT7TtGOTzjbye+fj/2wNWrkBQhIJ+yw++MnPbn6+u5CxwexTR2IvblMbMV8fZCRtyOfwUHn/HPAJPHPI4HIz2ehRLlGzPs2t+pnwDnAALNg7Tk52lc8ZzpLrK5nikUA5PdQFxkcZ7gZyP+p/z1cv8ApSa8N09WvZyll5LPsJsZzAr143s3bh1/G3s8gm5LfT45JMdE1+1IwdKxZYgrvGwu34JUym4RyCUEx08jKB7mJAIwck7VGSMk54wBxqsXjncXp+j7tsCfmolPl2CBRPIsZ2ju8uCfLUcZ7kgY1t7H4H+vz/3+T1aHVBdfejRo6NGjo0aOjRo6NGjo0aOjRpObfqGs7/q+e0rc8Hjtl1TaMVcwmwYHL1kt43LYrIQtXt0rleT4eKaJyOVKyRuElhkjmjjkXDUU8NVDLT1EaywzI0csbjKvG4wykfRHyOQcEEEAjZpKuqoKqnraKeWlq6WaOenqIWKSwzRMHSRGHIZWAP0RkEEEg5pPUr/6eizezGU2T0nd5sZgsfdmnsw9ru9lPKZXEY4P/U+hwvcXXormdioxktFUg2HW85aiQRJPl5grSmqnW/4X7dfK2e5dO3mW2TTEuKStLyxRP3VYKqPfIIgeFjkhZlz/AH5xq2vRf4qrhbaeGj6tsvr/ACwFa5Wh46eeXHAeooJttOzkHLvBPApYZWEA41WLtf6KXr5wkzV7npxwG5wJK6DK9t+7Xb61DOi+PM6VdnzekZCH3ASRHNWaXjjkE9QpX/hw8XrbJ/uua23OMsdparpgo74IM7CTbwOSinPcDuJto/xN+F9bEvnXCvt8nGYqy1VLFTgZzLTRzoSSefcAPsjnTMXf0cPXPQs2KsnpO7q12mkSdLOG2/tpsNQtOgklXzTeKIiaEhYpS7OsjAtE7gL0Vvgv4z00kKpZLfdAkIVmjajpgrhFOwN6mbcoZmCsAgJU5UBhrfX8QvhdOjN/tDDEytgLJQ16MVzjIPpOMDt3yD9g6VWvfoueu29YiSH0t7oysxDWNq7g9oNfqr8L4Flj7kW7oQlnEhNJmAVWAcMQuCLwP8bK7INktdsBxhjW0RbBJ3FtxIyOD8A8gnI40an8Q/hVTgt/G5Jzu4FNbLhK3/qpYg2T/wAw+/gam12o/QY9W2es1m2uXsV2PxYMYu2rWfyndPakjPAdqeL1zF4rCTzqoJ8bO1141cqVkmHkOpG6W/DV1QZYZuobpb6YKF80xytXzlskOUjjjSnU/Q87YBx/Lkx31B+J/pZI3Sz267XKQhtu+KG3U7EAgF5HkkmwTjJ9OW4PHxrQb6H/ANODs16Jqd/MYLJZvuL3UztAYzPdzNshpVriY0ypYmwuq4DHr+26pg7E8UU9uCCW9lMhJFCMnl7cUMEENrekui7V0jS+TQ+ZPUOoWarqCDK4GDsRV9scecttGSTjcxwMVZ668SL915Mgr/Ko7dBIZKa20pZoVkIKiaolf31M4ViodgiKpPlxIWbNh3Tw1HuuOVnWNzGqtIFb21dmRC/B8A7qkjKhbgOyo7KvLBGICkOce3GfjPbPxn9s99ert3LuLBcjcUUO4XPuKKWQM2M7VLKGOBkZzqFdX1C98MXhM6c/6fduzGxV7OcbDtgMHnaWCenFPBHrourJWzeVc261urdyU9VGswRtcjXFw2KFqCFri83WOObzLNUyzBpvJMUUqRbVZRCHG2ZzuDBnZBkDcDGrIw1Yabwr8N6y427+GeKtit9pkitS3BbpcLZVXNZ5YZZLw1O6T223r6aannpqSOV/Ilf0rmumhqopXeTtR3wqd08XrWRraVvOFi2Opn7KXMjrt9MJQOBy97EmvfzEsNaGCxkzQlu4xUhlrWKzxxC59XzD0pW66rcI4JEpqqNZ1mYO8LCJfJlki2tKQo3SbN8YUMChGW3HAj/rfw5n6KrbvRz9RdN3CS0TWyF6alu1KblUfxOgpa4SU9vjlmkeOh9UtLW7pI5op0dhT+Qpk1//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAIDAAMBAQAAAAAAAAAAAAgJBgcKAQMEBQL/xAA4EAACAgIBAwMDAwIDBgcAAAABAgMEBQYRAAcSCBMhFCIxCRVBI1EWcZEkMlKBobEKFzNCYWJy/8QAHQEBAAICAwEBAAAAAAAAAAAAAAcIBQYBBAkDAv/EADsRAAIBAwQBAwIDBwMBCQEAAAECAwQFEQAGEiExBxMiQVEIFGEVIzJCcYGhUpHBMyU0Q2KSorHh8PH/2gAMAwEAAhEDEQA/AO/jppp0006aadNNOmmnTTWLbpu+odutbye4b3s2D1HV8NB9RlM9sOSq4rF0YifFDPctyRxB5XIjghUtNYlZYoI5JGVT16qqpqKnmq6yohpaWmjaWoqKiRIYIIkGWkllkKpGijss7AAd51wzBRljgf8AJ6AA8kk9ADsnxqsbd/1gvThiLtzGdtdU7s95rNR/BMnqOqR4jV7ZBI4p5vabmLs2kPDETVsRNAw8SJfF1JrzuP8AFh6FbbqHpJ980NfVRsymG1Q1VwT4/wATe/TQSxlB/qTmDgkE4GcvS7e3HXoJaCw3OqibHGYU5iiORkHnKVOPOSVwMHvWuMP+t32Ehz7YHuB2h726I3AZLr4rXtgh9vn7ppKtTM0cg0UYZDL9JVtyL5ACNiD197B+Jf063SlTU7eqKq90dHH7tRJZhDXVCRgNzJt/KKuJjKt7ipC0icfkgzrHXCluFpmWC626st8jHC/mIuKMeu1fJVl7zyBxj/bVrnaTvJ2076aZQ3/tVt2K3HVcizwx5HGyuHrW4gpsY/JUbCQ3sXkq/kvvUL9evZVWSUI0MkUrzLtrdVi3dbUutgr4q6kLmGXiGinpahFDSUtbTShJ6SpjyOUMyKSCHQvGyu3xBBAKsrKewykEEfcEf/3Wzeti1zp0006aadNNOmmnTTTppp0006aa9NixXqQy2bU0VevChkmmmkWKKJB+XkkchVUf3JA5+Pz1wSAMkgAeSTgD+51yASQACSTgADJJ+wA7J1g9jubptcyKMqZ2RXbmtTuTqxRS3jGywBZGYjwjCtxI5VQeDyPhJVQojNz5YUsFUEs3RICgYyxxgDIycDIzrsiiqT/4RHWeyo6zjOM5H9/p2dUtZrt1unrB7wZfuN6oMVnsV251DN2Iu1fYXKWrNHC4PGwT+1jsjslGlOKeZ2vNw1/3XYcu01wVVmh1/D2ocdES9G4rJvX123/fKr1Lp9w7V9Ndr1Rgt2wXnqLV+25xM35OS9PTtG1XHUQxmsqngkdViKU0ciJKpWUIrNZ9u2Kgr0/J3bcV0VpIJQ0dVTWmBAvOQR9hqwyFUjWUYRv3pQiMcpnYrVe3NDHR4rG6fp+NoQkQxUKeu4itF7YAQFTDTErkqPDyMnu8A8u3PJsHR7R9OKOhFuo9m7RoqKMlIqWCw2uABeHAMJBTmcsy5BcyNJ32zcs66DV1+ST3v2ncjIVBLirm6HTcSikRBQfCBAo/hC4wNae70ekftB3iwEvOr4jC7LSru2Ly+MrikzlQzGGd4QSrt5N4W0UTJJ9splhZkEa79/D1sXcdOL3tGhGyd526Iy2y/bXnkss0xjZn/LVjUx9mZZSzYlnhkJZ+EyyRMyjK0G55ZphQboiF8s9Uxjnjq4o5ailMmFM9JIyq68BgtCCFKglODgE0zVqHqB/TH711u4+i5K/lu3F6RZNj1y5dmkwu1YtZubOLzkLSiBry1mmbD3oR71Wev79KX30ME1OE3J6leje96C4V1aovgaOH8z7c8Fp3zboGkNXbL3SqzU0NwFMvCCaLqKZfz1vlcLUoMBujZEFqSW8WCY1NimLs8TOWejfiG4MzrzLs3yRSV/0uQGBPV/2Y7uaf317Z6l3U0S8but7fjI8hUEy+1eoThmhv4nJ1m4epk8Vdjmo3q8iqyTQlgPB0J9TtkbxtG/dsWndVkl50N2p/eETlDPRVEbGKrt9UqMyrVUNSklPMASjsnuxFopEYx+f08fQ4IyPocHsZHkHsHI68DaHW2a406aadNNOmmnTTTppp0Jxpr47OQoUhzbu1Kvxz/tFiKIn/ACDupP8AyB65VWf+FWb+isfGf0/Q9aai33c3ePKZeLC1Mir4ejHDI61Zf6Vu/IpkkeaUD7lpxlEiThgJWkYDyK8Y2uk9uQQys0YXBZBgOxIBHInBVcHwOycd6zNvgYRmZY+Uj5CsQSFQd/EZBDMw7I8jABGtT2r6RL/SlQ8gt5q3uMeQPz5cN+PkAEgcEHk/jDVaRurGKeSJicjJV1J7OSBhvuMKR0SR4xrMUzPzUMgkUDByrIQB+oz5IxhgQck/rrWGf2/6azFBMzIWUKpLkgpzwxU/gA/JKgc/w34HUS7j3Q1qmhp6whVlOEcueDopblg88jI64nBA8a3602VK2IzQDwoyAnyRh8gCO+lznPa+Tns4+zEXMhbH1Eda21diPbdYZWDDnnlWI+VPHwwVivzwQPjrrUb1lYpq4aWr/JHuFlp5n5L0R7bMozGMfEjl0CQcAa4q1pYSYZJqb31yHVpUByehzAIwc56bHgdecbQxGURIiLD+ywJJWTyVh8BvnyA5YgAMOPlmPx8nrdrdXKtOVlYxYVsrN+7YAKclg+OzjsEdk9/rrlRSs0gMYEgLrngRIMsQBx45+pz19AM/bUX/AFTaZiO6vanaNQyEMTnKYmdKMywq9iCYROySQOVLRzQS8TRMrAIwbgDk813/ABB26nvGyaunhip/2sKaGus87wRyOK+3O1dFArkB42keNoiVYL7c0qEYYg77t+0LXwV9vmDyUtTFNDVRe4wVea4SZVHkoCoDBc5Ctjo4iL+gn6itjjsd4PSPvUqfV6VdyG26dPK8Ucluank0wu50UjcJcaRZRj76LMh/oV55VWPhjNjPwm72jjut12n+cUW3ctsi3jYLdKknuUNyWOnhv9LDNj22jnpXoa1oSxKzwVboSXcarksVTSVVxtVVHxmtVZNTmUsgaWNZSnyiAVgyOMBmyWV1P8PEnpV6vlr66dNNOmmnTTTppp001G7Yt7yuXnyUNbJfs9CpYnqtBFKle5Ga8rRSfVu5SRJT4ebRsyoqsvCOOHbLx0scSI2BI7qH5MCyYPfx8LgAnznGM/XX0jUMwyC3045IyTk9Y7Pj6An9NawubFqeFT6jK5JXdnRfcsSPPJK7twv++fJuT+SE8PHkluOeutV3Oho05T1CIoIBKgsQSwHEBRhQT134P9NZGGhrat+FNStIRnpVC9KM9k+D98kHPR1FHZN9rw5zJwRXophFcmKssijySQ+5Gy/PHiY2QpwSOCPkEHiD9xbnp4rpWQCoRnSViQWBYBgDH/MQVKEEHv6A4OdSdatvzPRU8rQFPchU8ShGGXpgOugrgjBwevsc6x9+4yQr5iYgh+Cpf7eP+g4II4454PJ61abesMKFzP0CWwTgee+R/lHjJ/xrMR7ZLnj7fR+oUgjo/bvwD56/5861mcVuWcnsX447NTD+06ViS0UtyVmKCQBuXiiVWkaLnwdyocMnkhxNkqLHvq7yy3OniraWzyQzpA5Jilq2JaNZF5AvFGE9wxN8JGZQ4KAqe5dIK/btuijonennr/cjaUDDpTqBzK+f3jkrGr8cqvIjDYIkVjs7U8VViqsCOAD4qF5UeAK/CDx5AHAUf5dTOK6LAVSAOgE4qmFU4CrxGF4r0B0AOsYPUZPSSjlyBIOTyK5yxOCSCSST58kn66zCtdoZAew8MEsMgKtG4WUFTyOCTyASOD9p5+Q3IPx12FakrEaOaCKeN+milCyBkPR5HBA+38WQR1g411j71MweOWSNkIZWRmQg+QRjHf6Eff8Av+VkdQwv1EMkkKvG8VmGr7jvKIxPEYbUEiSO8coVXHtM6kqCrD7hz1rd02RYq1opKqm5e0lQlLI8juqrUxNDLHJE7NFN7ayERl0LAhWBVh1sFFuq7Qo6xTk8ngepRUjUuYWWSORHVVePmVBkCt38lPnVEE3aDu36Pf1ZOzfcLUK8o7W9+7+yU6+x4zG2p8bYzGVx7VM3rWwPDStQ4TYa0SVrtR5n+mzOJhSdXWtWux1KiWn06v3ot6ibKqKeKO/09Xv6Gm23ND7tOg29uKeeivNrqIImYxNbKa5zVjoqSwCOMVUPwWoSPTL7i673FyENRSWy5Uk/7SMUTTpHXJS5i92QKFVpp4IzG7MhePKMSQCeq3t9tNnbMJJdt1vYsVLklGSVB/QtmOKGX6iHj7V597wljUlY5UYKfHhR6LzxLFIVRiy4yM+RkkYJ+p6zn7EawbKVOCMHAJH2yP8A41nXXx1+dOmmnTTTppp001F31LYiXFa3X37DmjTs4bJU4NhWWsnjl8Vk5osfD9SyeDvPQvS1XilZ0IqyWo2dgEUYi+XW52mkiraKpiWGCphSrp6pBJTS09Q6wHzhonjlkjdXR0/mBJ+I1sW2aWiuFe1vq4ZZHqYJTSSwSFJoaiBDN8f5WV41kUhlY8ghXGCRVz3A2vtpauN/jTRLDSTFZDdwOxWqivMhLJL9BamgrCUsSytHIFDke4ZAOBFe5d+7ZppjS7s2d+ZjYhzNb7gVikZM4c0lQyRFgWIGJD39e86mfb+1tyiL3dvbljQqCvsXC2pIwUkAr78KvLxBAzyXIGcDPY0Ln9j7JNca3S3/ALgabXMCxilkNPp52vBJHGqhzdxck9uXyKs7e6Z+XkZk8VYRpD2593eiV5lWeS97t2hPBGUYR2CGupmAPmQ0ssjyMCT+8zzOXBJUDG+27b3qVTr7M9m25fuw3uw3aakmIyWKrDURoq4z0AOIABODk61DsOz6tlXko6d6pdOpzq/3NtHavcbKqAn3p7UOZwJBJZVMiM/t+LEI3UYvc/SK5TVFHR+v1ArqGVYLhti70jqwAJBcxqspAzlUAAIIz5I2WG2bvpEjmuHpfcBny1HfLbMCM4A44YpnsgsSAPvnvKuzm1R6NkcxNuPqX7V7LjshXpfR18Jom5a9Yr2q7yieWxJPks5HNHLDIEWJViKOA5kf5XrO7Nrdj7RqK2Yetu06ynrfbd0Nuusbh4SwRxlX6ZHKuCq9hSuAO8ZuO3Xu+U9PHT+m+4KeWnLgu9fb5l4sASAuIifkowQR1yyMYOpO1fUj2WoIn13djCTyLxytPFbHMWPILfb+2luCCPyP54+eBxvdR65+itrJWv8AVuwvMgUslJQXmodcAnBWKjlCk4yAx8dkdga0wel/qDWsfy2ya9FbIBnrbdEMHI5fKoHYAJJ7+vgecpw/q47M1pz9Ptl7JBVHh9Dq+fk8gw5A5sUqsfmOChBlVRyD5EE8dWk/FP6DRVDww76qrlIFOFoNs3p8lvALz00EYORxAL+cfLB7+E/oj6jyoC1hpaPmzAmqu9CCvH4k4ieYspBJGSCf5ckazip6pNLz9irXo4zZr6xFjC0kNPCRM8gCsXknu3Z/HgKRxXRuQDyOABsFN+Jb04u89PS2q1bsur8/3MtRFR2mmzIOGX9yeeZlGM9RZH+NY2T0Z3Xbo5ZKy4WOlVlLOsTVVfJ8QekEccUYbOAcsR5PXZ1JzQbH/mDldbxsWNq1I7t17NizYkbI2KWOoQi1kWhklCxRXLldVx9eSGIGNrLy+RWNkM62mqivEdquMFqp6eUzNJSzyk1stBEYs1MkcsyhI5aiEilUxIrFZCSSqnMa3anazrcKeWtlmi9pA0USiljqZyxWn5pGzF1gfNQS5H8AUDk2dTzqU6tCtFUpV4qtWBfCGCBFjjjUfwqqAPkkkn8sSWYliSd4JJOSck+f/wB10PA/TUfEkkk9k+T9zr6euNcadNNOmmnTTTpprTXqFxMma7Kdy6MIJlGp5O5F4gsVkxipk1cAAnlDT8wQORwT8ccjV960k1dtPcNNT5997VVNCFzy96BPzERXGTyWSJSuBnljGtj2hUx0e6LFUS49tLlTI5PjhO/sOD9MFZSDkfb7a5n+7e15AxtBNJZWLxIkki/qFCT4iVI3DJyCfLgjjy/P2nkUG3T6k0d7oIqWunelq4kMFYQQT7iAKZEV1PT4D4IODlT9QL2bYsC0EzSwxxOjsGiDdAjI/dsQc4XtcnAOB9dRVzu4UWxy069+EmrWlMjXmaO7cnUM3HFaNYxI/JKgBU5HgDz8mB9y3q1R2+ZEuNM7QwSMxqZfamqHwxCYj4rzk7CgKPoo7OpIpKOoNQZHp2VnkXAhIaKBCApPzYsQckkjJJJOPpqNlqTPTXWvUfrQGkLErIVEfHBcBiPI8DgfJJ/uSfnqtZq6VpXklaOGV5GmQhmaQM7MVAcnl8R4PIYH16xqR6dImiWKUKw4Be1Az19QOsd/7nX52S3jZsc610kteX9vqSvPzyT8xsCPgkjy/wCvx1lqMSTRFhcZxEcjAIPxIxxOSGx1gZ7P2B8/sUNAPmY4zjA6TP6YGDgeAckeTnWxdBmy2ebzuTWQwZWAMxdSGPJHBVfkj5A5Pz8kdYObb011rPYt8XNWYtUVJjJCFuskknk5LHAGQB2cda+dVW09LHhFUYGFHfI9YH9CCf8APn7WQ9j9KxWRWOKzFGzeCs0jKhZBwBy7tGwQckDyPH3HgEHgdWC9MvSyhnZKYxBpOPKWoZQH8r85ZODBPkeILsO8KD41C+9Ny1VKrSIzDPQUMeLdfyqWAJI7IHZA6z2dSD3HRv8ABmIXYsYkw+meIyA8n7W4A+Co8R5fyAvI/v1ONd6b1G0qdb3SuxWKWMvyUniGbryASAQRjrBOc4BOo5oN0i91Bt05U+4kgXGOiF7yB5wPBJPnAxjUzPQ1sWb3buLaltOVw+r6TdnjiQEoMplbuMoq1iTgeUxrrd9tGbhVDiNfhz1c30bvtbfKJVm/7vQ0MWCO+U8xVSGPfyCoTgEYzj6Y1X/1YtdLa443i7nrLgQeRwRDFHKxKDv4cigJ++AT33a91OeoQ06aadNNOmmnTTTppr57kC2qtms4UpYgmgYMAVInjaIhgQQVIfggggj4Px1+JF5o6Hw6sp6z0wK/865VirKy9FSGB+xByP8AI1zT5TRK227XmdfmevX+luXYGMiMx8a1qWqQFBXkoUHIHBPA5468nLrtA7n3zeLQKmOienraoGQqeRCTyIV4qyhsYwxIzk/1OvQGkv7WawUNf7cswlpqdxxPgvCjjL4PXZAHjoaxXYfRPiZ3jyFbLjx8C0sRrK3mP5EbeSlSfyAfLg//AF467O5vwzQ1FPDVi7yO0SkugRlDjskD5DBycoSTjJBB6GuLd6wtzaCWh+ZOAwk7z9CQTlgM4OADnOBnGtZ7l2KxuvYsUaNUAxqy+83Ad5OOSX4/Pn9xH5Ck8fP5NVvUH0wWyFVoj7FRG7BZmdmWRlHIJMS5yjqGHJe0AyvQwZEsG8Xrn5yucNghRyIVTjPHI/ofJH17GMQV3jR0pZLxmVYVD/d58Bm8T8cL+SGA+fLgHnnn561HZ1LV3GeSiqZko5ImCyLJl3PeG9oA8Tlew2eOP161u094AjUoSea46I6wMjIGCP8AjvI1n3b/AA1ZWrCB/bkP2x+PiUeRSOA3xyvkSFDE/wC8QOSAebOba2jBFFEkATLZwwAPuSlAAZCPqR/McZIJI7GNVuF2ZlYt8h1nBIKj9AcA47OOj0PrjFm3ZvD2cPFVtRxlmkK+7IzMWaMlGKMAyxsFbkI7KxAP2n5PVs/TbZtTaBFWxQhnqOKTk8svEzhyhQMIn4nGCyswAz1kDUD70vEFaZYXkIVFJiCnIDqDgg4LKeJBOCB/q771vPuZJZzevwa7WkVrFidbF4rz9kEf/p1kP/t8vklDyviWZuAfncvUpPz1qh29RNEaurnWWtXkQYKRCeEOesM75IXBDLkn7HSdqMtJXy3SVWEEUXtU4PiSQ4Mj489DALY8gDvoGbPoD1k4HUd6sNGVa1ncRT5df6vNDGzzOrOVDMOb6kDll8QhHUqejNne0bbmikTgz1EYIYfL93HnskZIy/XZx+moy9WbitwvFCVYN7dLKxIOR+8mwB5I6EefvknVgHUv6inTppp0006aadNNOmmvB+R8f3B/0IP9x/3+euD3/uP8EHXB6B/ocfXvHX+dc2fc7Jy6Z383auv9IUN72ai45ICxDNXFHI/4fuVhwOCCG4H468lvUS9SbR9Z7w4f2UW/XCM8ugVkqnZeRGfiyspBbHk+dX/2vRrefT6z5HIzWWglXwTyWmQf3wy4JAH2x0dSbxea+uw6SuVZGhDeXkSApQsCSeB+Pz+AP8gerN0F8FxskMpwyPECCAGDBxkH/UME4yR3gZxnURVdvFLXuB0yv2D8MYBz2SBjrOesfIZPeon93O5nbLCpWbM9wtIxkNu1FzLe2TF8iqyyPJYir1rM9qZUVRwIIZSwPCq7FQaxepG1Nw7jq6WlsNnrK+WpudLT1M0dHO0NFTSNIJaiVwgVRGgHZOBlQVPLW+WTctjs9M1RcrxQU4jp5JIo3q4TJMyheKRxqWkckk44AkkYB1Vt3Q72dhstNeXH9xcRJPILTwWYsXsEqI8McSVvdkbCCZ68iRyPLx7iJJIpPJVEaEKz0P8AWCO7pcaTYl5kgMUYmEMtHDISpdmkijNfGymPkvFjGGKKygEEqNspfVXYMamJ9z0EbkuELRVTDwoVC4pWJDAMTgjk2Ccdg6s0fu9gqeyV6dHacFk445obNRI8lDVsPE8DEt9NkFqTTS+287oRHwrCEMiHy4lfblTura6QLuvad/tMHuGJrhUWWuWl92FyrCWoSOWGKMMvAASLlgcZBB13pr1YL0rC0bktVdKVEiU0dyp1n4SKChEExjld8HIAQ9EfUHFvXZvuk97CUTUiiuSSRREsWDxK7+RkUTQOYv6XKKATyng4YBwENoLD6wbctlsaI1SvUqoWCm4SCUuVx2jYZVZxkN/CQTjIAOo0ve1K6smWTiFiJLyyCZGBUEnA4kgsQQuADgjsgg6kVVyr2ZPflYGaRgzn5JPxyv5/gDgAD4+P4PXStG4pr5cZblU49+plDEAnCp4SMcskgLgZBHY6H11j6q3pSRCmjz7UI4gYC5+7N1kknGT9T/tq0z0e1wva/IXeOGyG35eTn/iFOrjqHPP4IDQMB/kTxzyerhbITjYYG8e5JI2D0c/FfH9vtk/XGq6b6kLXwx/SKlhXP3LGR/v9Qyn+mpXdbfrTtOmmnTTTppp0006aa8H4BP8AYHpprn69U+jGt397oZORB7R2eTIwR+D8v+4UKWReQkqECe5M6D7+WkP2pwrMPMT8Q+z5I/UDcl9kiHsmthqKdSjYdpKSGZ5WYrwEYccF+RLTDioAUsLv+ll8WXZdhokYiRaJqZ25AhRHUzRKmAc5ZQGxj4jyfGYN+sr1R2OynYStTwWSyeI3fb7s+NxOQxcqwTVsPixTkz0jWfGSSGTJJksdg6zV1SaKXIWLqWa30BkO8eitau6qF/zESvTWeNGrFYNiaSYFaWMBChLNIpdssFAVusDIi71quTbWpQaaSSOsu8rpTvEcNFFFxNSSzE8RJzjgUAcgJHbICaoA7ZZLF9x+4dDA7ZJlbuOt4zPrUxuMyFXEV5srXx0ljEVrctu9QVMElmENkoadhcsKEEhxzidJJhNzA1VUKeYyiKRnZkgcxDki5QcQwBTAw2BzKjrJ1W2xtHVVkUdWZJB7M5WMSBEaUANGpZnXjEGyzKrBwoPAg5Ov6zO74jsH3czGidweyWg5ejreTSptWsw6DhLuzXls1YreNjwewbfmN2FuO/HcpPVyPNmDJxSBcfNO0qTL+5RBQVUUVRS07EcPchSAM7B1HALJNJMJORIJIxyUkA9a2SmrXtdxloqi1UciQy8JohRI0zEpyX2ZZ3qCytkYkBIfPxOc6wP1VYntB2m3rYtL7Sx7hh9yx2147N5Ty2cWcZgcRsun0c3mtEv4bHUaWIxeZ03aL64KtPiZbc0laperZWSvNWqxSZSZaWhkeGjlmimaSOWSJZSIYkmiBaBof+kjLIygANISpPLGNfq/LQ01RNFRxOs8c3JmaQMEVoVkaEgKFR4JGaMe2xyuQ3fQsN/TM9Sd+9bj7XbXkjJDbgtNrsCxQlVzaeeTt2ZbLBrnuZ2jXuiX/aHqDM0WkWvWmyytNXj112XRtTweoFrookuFLV09Jup1kmR6iikihobVWLTkmnX2JlMVQ0SxO3uRSvyGdSx6J7yq5KqTZtxq5Gp6innmsSOiYiq45Jauuhab/qn34S8kSsXQPHIqhSy6vrweSrWI18WEZAB+4jhvgg8EHnkn+6j8njkfjH+n1RS1Sw8PgV4fx9BmzklXIPjAyCc5PWDqWr3DJGWz8uQIBGcjrOSP/vr7dauh9KlE0+x2nzH4fJPnMm3IAJ+pzl9YzyPz5RQxsCSTwQOeAOr5bSiMW37cD5aJ5P7PK7L9B/Lj6f3PnVU95SiXcdx4+I2hi/vHBEG/92dSK62PWr6dNNOmmnTTTppp0006aapL9cuQiw3eLaIGKqb2K13IITxzxLiY4H/PweZaz8fB44+PnqjH4pJ44K6oj6DS0FNOCT5whjz47AZev1+/ebX+ilO9RY6WTORFWVceBnvjKrgdHOQJFP3OM65lvXRsW2dythx/bSrqttsbp9aDc4NmpZzXCLuI2OVMfZjGOzUOPmoS4zI6zchyYTLSV2j/AG+wfGSxVjkjj8J1AK2w7uv9LuGS4CesSyVlh9iKmWy1tDUmrjqVnadjVrW0c0ZQtDD7WJIzyPnC/iL96sutm2/NZ1gFFD+16e7JURs1fS1ifl3gEEqRGA0tVBIJB7riT4N1kagfJ2zi1ZP3XPSbPj4Y7dCoxlxGtpZqX7WR2jHUvYsUe5OHvQTtkNK2arHYC/T+WMdZg0dygbdk/YkSdi6NhJQmOMbMuZCqnl+YRkJZWAKgk4z0cZr7+xaejRZ2/MhuKDLJB8HczqpjCVKsW5U0wHLAyhyMEHWxtcy+HxWy1NLtf482TuHWty4zUa+w19ds7LqOUkoQ2amOqW5N6OQ1WzSFhLNOOPJYPIYuVJIMdboWqsoh7dTDLP8AlKaCplhqxV0zfv4oZ51iSRZZoFMj8oHmiJjWQMWhVmK/IazFvqaWlqXp5oquqqlWaGnSQKJaeUw/DjIsxeP2MiUR5RsrwBUg60Tb7Yx9wno2sTZ2GDH5o0MrjaGH7ca/j4LEexbLNrVHZctkNg7yzZ7LV8ztPvYgbltWTt1rGUkK/uEKzIDlIKFqxk4SSIrOHWKOnRQ59woJXY1HuuDIGX3ZHPJs4wBk4mVVnCyor8ZFR4x+XWNeM0hiWRmkqWkYSTZUSSMQzEkHBGt1enA1ewfc3V9sy2D3TP8Ahm7evY/A2te1nXMve2NvLXmx9CG1v2TmF7EZfO46rmAKM8mGsSfTXlgsBo0w2/8AZz7g2NuK0m6vZVnhpaiouNTTD2IaW2VUVwqo54o6r35I5I4lWRYsFH4FmwCpymy76u2t42K6m3VF0aOoqqWG3oY4Zpqusgegi9oyM4jkhnmT5FTx+aqCck9KeGyjmnFFxDXtGJGliD+80E4jBliWxGFWQQyB4w/j4SeIkHCsAKu7DqEf2aWkkSQiQBJmRo2kVW+D5BJRZOK/A5IDEMTq5l0pmz71RG8YKKZIwyvwYr+8TIAVyp+JcBQSMgda6H/T9j3xfZLtdTkBEi6Vgp5OfyZbtNLspP8A8s9gkn8nnk/PPXpBYIjBZLVExyyUFKGJ/wBRiVjn9ck5/wB/BGqTbllWbcF5kUYVrjVBR/5UlZB/fCjP663D1l9YPTppp0006aadNNOmmnTTXPb+qxlpNa9QemBpDDU2XtxiZXPJXzmxmc2CpOefxyIWrIT8ED+eqE/jEhMVRbas/GKWyunMlguaeqmLcsecCTJYdhR2fGrnfhsWOq21dF8yUd8kAyobCz0dMyhSDkZdGOD9ST9+NJ3dXtH287y5Wtc2qfaIYIMUmDmq65sZw0F3Gx7DQ2mBb0Yo2msy085jad+nI0kZikgCENG7h/On059e94+kKblo9o0FhqLfuG4xXGrhvFHV1TNPSxGCNopYayleOKQZdgeRY8Xz1jU4b29Htu+o0tuq7/UXeGpttI9HA1trI6VDC9SKr98j08oleOVVZDlSPByMarw709vO9ulfu+QymuncNCsZKxFPnamxZC9a/bZNnymwQ5vK0qS3Fx2QXJZ7M5lLElXHSUbmXyVSrYjrWmEvox6b/iI9MfUdbfb1vdHY93VtHSvcLNexU2uFrq0aNWQ2m41amiuEMNUHamUVENVKhBRebEapbvr0g9QtotXVMtnqbzt2mqZ1huFtqPzsy0AqpXgqK2jp1eoppWEzvK4jMcUjuOfBeoyP3VTH7ji9sMdobHSyP1sGyQ5POX8tTtNjHx/7lmjL23ujM246VCrRee42SnE9iOYD3TbljsUttLyU8qgOyke3OkdS4B9ocJGY0v7xAq8FPJ2GVOcMWMOmvWKoNQ1PKlSj8/ceoxLyAETM4MBy/EBTkHsnPZJ1l+CyG7b1JHrWp4O9mMONfrYSxNFnPoMbQwUWTyN6hrdmFu3dGzHgsfkLVjNY+hK0WOpZC0trHwR5Cs71Nd3ZvjZfp7DDPujclvtYlSQRQM80txqFzl44LZS0sldIny5hvbih5MAH5gkbdtfZm8N8u8G29t3C4xoiRSyJIIaGGMuzxJNV1McNLGisS6x+4xU4YJjAFlnbjtqJa2tbBum9b7a2StmsXs+Uxc+b1zL46bIYrM08zRxl7JS64+Wv0vrcVi8jkVgysMN/MQPkin1LySyUc9SPxmXm5VW6do7f21bJ9m3ZKqzUV7rZLnHfZqCdI4vzz0xMUNPNJIrSJTMpEaqgly5fNrNo/hqpbbHt6/7gvFzXcdDNS3Sst1O1BNbIa2CUVApBOYZJpok4qskwkAkfk6AZGrBNe3+L3I/OcEyeXjzICWaRWROCCST5kjj+/H889ZH0X9+4VlA/y4tLEvYKgjIBJB+w6I8ZwO8a3/ddGkcMwUYwGYEdHoA9DH0H1Pf1/r1yaLSON0vUscwANDWNfplR+FNbD0oWH+qH/P8APXqxToIoIYwCPbhiTBGD8I1Xv9RjH+PprzlrZDNWVcpOfcqaiTP6vK7H/JOsq6+2utp0006aadNNOmmnTTTpprnW/XZwGbxdnsZ3KxteSSlUx+161fsRJI/0s6X8dl6Bs+CsErSpJdiWYkKkhCuR7qA1J/Fxt+a47Kp7nFAZkpVrqOoKoXKLVRoyFsYIUlJME/EMME9jNvPwrV8JqtyWh5OE0jW6vhQ9B1jE8MuOxlgTEcYJI7z0c0PYjuNFLHE8jvHyAWVj8fjkj88Ec88H+3yR/HXkBW7XaNnCKH8gEAEnH1PXkD6Y/Q9avhFTgqOiMfYEnP8AUg47B8fpjB71g3cba96vtbOl7zVwFa5DUjf6ylPemx6w1ooZxiYGWbHwz2ZlmtS3pYTNK9k1rImqUq0Tbzsuj2fSU9JFuXac10qKSWeRXpp4aaKsaSdpENe4eGslSKJo4I6UTCGMQCoh4VE8sg1i87e3XVTVL2O+09tWpWFCZ4JJ5aSKKNFdaNSklOjyOJJTM6F2abhLziiRTF7P5jeriZanmG7aS5efENNib1TWaSZc3FykSw3r5lx1mkgtY6OaJm+nljS5NHK0bNFIhmq3SbWo3oam1T79p7YlwjW4UL3+sS2CmajmM1LSpBXwz/u6t4mjHuRsaeORPcHJScLLsvc81NcI62n2DVVX5Jkt1ySxQiravWpjKzVbVNJNGfdpeaysiOBPIZFQ4Ua90F/uXFCLWJzmq4jGmpRFqlNi3lpVcqlGqlyPCpVrVQsU936qy31K2rDxmIv7K8pHjpY9hykx3S0325Vqz1f5eqirQk9RRtVTvA1zknqJy8sVMaeJREYUVw3chPJ8i9o3jBLFFarnYKKGSmpTNRm3NNDS1SU0K1TW9IoIVSCSqFTLymEkjoUBCH4ru3Fb7fQKteeVnJUBYwzEkcc8IoZv/wAjj8cAsfk9RZUbXSeYrFTPI3IlERWd8s3xHwGST130SckYHWttngQLl+PQ+f0ViR8sAk4BIOBlsDok9EzQ9M+t7N3S7m6Jr9uyMfjb2w4SC7Pac+f0j3672Ur1E++SeaPyii9z20V5PORjwVN9Pw77QlkntFKYBTJEtPJKZQPcURn3Jlx0TIcFCG8McnwRqAvVK4Q2ayXatVDK0dNUe0qEEe40bLHyJA4qD3kcviMAdg67no40iRI41CpGqoir8BVQBFUD+AqgD/l16Ba80/8APkknySeyT/U6/vppp0006aadNNOmmnTTTppqsD9V7t1Y3H03NsdG5Ur3NHzcNpq90iKC9Szqpjp64ssRFDMLEdR4vqSK8nLxO8bMjjRvUi2Ndtn3anT2y8aLUqsrBUf2sq0eWBTLB/5+KHBDEZzqavQa9Jad+UsMscjR3OB6XlGCzRyRn343KLlmUcXDcQWGQcEA641tpyjYTI2KuQxEcLq7DxMP00isCfIpJH4RyIf4cFgwI4c/HXj9vnb0tPuCoEYajMmWaIRhIyysRyCFeOGGCChOQT1jJ16i2mT3adGVhKoAJJOScjI+ROcfcHGOyNa3yu3VHR1hqFfL4JlnZgnyAftViTx+fggEn5+esFR2WZSpeZTg5wkagn7HJAx/nGMgY1l+bBQf4ckZH28/31rGTJqzO9iKsLEjESPD7rKYo5nMEayTH3fH2yjSxghTN5MoKqpG3/lygCQNL7IwFWUoDyaJfdcqg45L8uLEF/b4g4YnH4kkOMFjjI7+h4nOMd/bvJ86/QGwCarRpmOvHXpGYxoiEiSeeTylsTsWJecqIoFPCrHBEiKo+8t+JYGZECqqcAQ7qMPKWYsGc9liFwqjKqqqMKOTHXUVUSSSUFmeUrkkkcFQYVI+ukJy5HkuSTnWe63mVVo0VgpLL4hRwT+eBwvHIb5HA5BJHweOtn2pDGjryYBi5DAkCRmbBBB89AE4Oc9gfbWJuOcOQMjzgfQYGf7A9Yx51c5+l/24zfcT1A6HE0sWLx9LIJnZ57fzZnrYErlZoadJW+pLWI6rQxW5o1pQu39SRyVia+PofaZ45XrjGY4oacspkHBmLkJ8E/iI+fbkKuMYPIjVTPX69wUG2aqmPKWatZKdUTIVS+AGkkyF+J+QjUl28EBckdig/H+p/wBTz1ZPVENeemmnTTTppp0006aadNNOmmof+vjXauyekPvtWtW5aKY3R72xJairm17cutyw5hVmgBDNWlWq8Nl0IeCF3nXyMXg2Iv8ATCrsl2py4jEtvql5spZVKxM4YqCCe1wcHsH9Nbr6dVrW/e+2alU9z/tWCFk5iMstTmnYK5HTAS5XPRYccfLXATvux3KuQniS401PycL7cnv1P98kcK4KpyCD4ssTj8cc9eTW+rdIb/LTyNzKqW4h249yMOaAHGcDpgOh8WHWD63WSpi/KRuiZ5KMkjsEKMBiPBHeBkg9kfXWmL+xh2byigLc8k+BQn4BB+xgo+OR/r+OeRgaa1gKAGkHQAGcjA6xkgk5z5J/3HnMGq5Zyq/+n/HxIJ/T+/nOsVizFfmb23ilQzygqsrytHOOPeSSVpXPkr/iMlRAvivH4PWbloZsRF0eNzGh5soAaI5EbIgRQFIz8hnn2cnoa6z1a5AKjBGeiwwc/wBe8/r47PY6PuhzyeYVYYuSQPuLn8n4IAcH54/7cjkfHxa3EhiXY/YZ4gDHZ6B+4/p9Ojr4tWr2oVc+B5YjJH6/XHg62FrGx2EtRrA4ikPj4iCNA/HPHw6gyj5PHkHA+fnrLbYo44a9nZ+J8LyIDElsEhiA4A6xxPWTkH6YO51jNCygEDBBHEYJzj6ddfc/fH1yOmf9C7Wv33vBuGyX8l7V3VtDs3YcasRsy2v3i/VwiTXbjycVhAks5ggAlksOHDGNa7qfQj0bgEdqrJRIJCxhTrLMQ2W5u3gElRhe8qORxgDVIvxHVzflLXSiNSs1YxaXkBxEMZdURB2WJILtnAAAweQOupjqZ9VM06aadNNOmmnTTTppp0006aa+PI4+jlqF3FZSnVyONyVSzQyGPvV4rdK9RuQvWt07lWdJILNW1XlkgsV5keKaGR45FZWI64ZQwKkAgggggHogg9HI7Bx2MffX6R3jdJI3eOSNldJI2KOjoQyujqQysrAFWUhlIBBBAOudP1T/APh+tK3fPZbcfSx3VHaOzk5pbbdsN/xFzb+20NiaSSR62vZvH26+36rjeWCxUrCbVVpITHShhrJFWjrVv/8ADbYd11st0s9yqLJWy/J6dg09FyBZh7GD7tMhYhjHxqEBBCKinGrR7F/E/uCwU8NDuW2R36GFVQXCnlWkuRVQADUoValq3IB5SYppGPbOzZY1Rbp+hr689etT1E7Ods+5VaGQr+8due7uBo/VKDx7qYveK2kZCHzA8h7zFxz4lQfgwNXfhl9U7e5Fou1ouCBv3YepRVCZIUt+aWN+/qBGVHeT9p3ofxS+nFXEhqzebdIyjMVTazPwIAyBLRvUJ9cZLDoZB1H3Ifo0+u3GWrFJ/ST3LJeb3ks63v3abO1CZlEkwEtzuJi4owkn9EnzlaVeZVK8FArvQr1mp5I1horLdUSBULmekpfmgXAUiSZiAWYAlUB45KjoDJr+I30tqF5NeWgYt/DJbK9fjk9njTnB6GV8kHrsZ1nGo/oo+vLKWYiPS3lcbFyHaz3B7udoMFEPv4LSLr+8bXZRPbHJQUpZVYkBG5HPxi/D96zXAgVEVjtSkgMYq2nmIXAzjKq5IOe84x3xyMHH1n4kvS+m5e1ca2qkweP5e01vEtgnzNFGpznILNjogkdnVh/Zj9ADvvlbFWx3Z7ldpezuvyeLW8T23x+V7l7s8YJMkH7xmKOpatjbDclVtJHn4vnzauWAUyztL8NlfSSw1O4L5SgJgtFbxNUzsBgcffqFhjTljJKiRV+gJGTFu5vxQ26WOWGwWKtqnYEJNcpYaOBST8WMNM1RK/HyV5xZPXIDOuiv0qejzsr6PNIm03tHhrq2MrJXtbZuWx3VzG57lfqo8de3nssIK0IhqrLKuPxGLqY7C41ZZvo6Ecs9iWa0ljsVv29QR2+2xGKFMFyzc5ZZMBTJK+AGbAwAoVF7CqAdVX3Tu297wuJuV6qRK6hkp6eJfbpaSJjyMdPFk8QSMu7M8shALu2BiUvWY1rWnTTXrlZ1jcxqrSBW9tXZkQvwfAO6pIyoW4DsqOyrywRiApHOPjjP0z4z9M/pnzrlePJeRYLkciih3C5+RRSyBmxnipZQxwMjOdQrq+oXvhi8JnTn/T7t2Y2KvZzjYdsBg87SwT04p4I9dF1ZK2byrm3Wt1buSnqo1mCNrka4uGxQtQQ6uLzdY45vcs1TLMGm9kxRSpFxVlEIccZnPIMGdkGQOQMasjDVhpvSv03rLjbv2Z6q2K32mSK1LcFulwtlVc1nlhlkvDU7pPbbev5aannpqSOV/Ylf8q5rpoaqKV9ydqO+FTuni9ayNbSt5wsWx1M/ZS5kddvphKBwOXvYk17+YlhrQwWMmaEt3GKkMtaxWeOIXPq+YeslbrqtwjgkSmqo1nWZg7wsIl9mWSLi0pCjlJw5xhQwKEZbkcCP97+nM+yq270c+4tt3CS0TWyF6alu1KblUftOgpa4SU9vjlmkeOh/NLS1vKSOaKdHYU/sKZNf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwAAAQQCAwEBAAAAAAAAAAAAAAcICQoEBgIDBQsB/8QANxAAAQUAAQMDAwMDAgMJAAAAAwECBAUGBwAREggTIRQVMQkiQQojUWFxMoHBGCQzkZLR4fDx/8QAHgEAAQQDAQEBAAAAAAAAAAAAAAUGBwgBAgQDCQr/xAA8EQACAgIBAwMDAgQEBAQHAAABAgMEBRESAAYhBxMxFCJBMlEIFSNhJEJx8DOBkaEJFkOxUlNicpLB0f/aAAwDAQACEQMRAD8Av8dHR0dHR0dHR0dHR1+K5qflURe6J27/AD3X8J2/Pdf8dGxvW/Pzr86/frGx8/gHW/7+P/6N/t0I5Hfhe/8A5/8AXrAIPwfj5/tvfz/0PWeuBTCAxXmIMTE/LiPaxqfCr/xOVE/CKv5/hf8AC9avIkalnZVUDZLMqgD9yWIAA/PnrIBYgAEk+NAEn9vgbPTYfUj6lqjhDinlDZ5+sbvNjhcDM2FRiopjx00MxSsiU9Q6zACSyI+ylkb8tEYw4zXGQKo8KEafcvd+P7fx2QtGRJrNOmt0VwTxaJ5khUvIBxj+WkOz5jAIOyNuLt/tq7nb1KsP8NWt3WpG3IF4xyJGZX+wuGYAAR7A/wCIdedEBovpU/U/yfJkmg429S2TH6ZucrOPW/TUWjsXPwOol2kQE2LCy2um+0ONamGdWR6LQEiy5ygKSslT1QseM1+z/VXCdxFK9tRi7kz8IWdy1G15PtmOaQRyQSSpp1isxoCrqUnl2F6dfeHplke3mls4yymaxsYUyvCoW7VBVSwnroWWVI3b23sV2dRIrCSOMEESroYSsUiEZ4I3zV3knZG+Pl5Kvft4+P7vLv4+P7u/b56lXkv7g/6efGt7/wBNEHfx/fqMd9AThkDYUBRmGRjSjIN7XsIJ6d2EG9qq143p8sIxXMeny1yp0B1OtEHYBH+h+D+2j+D8H8E9Hx129bdHR0dHR0dHR0dHR0dHR0dHWq6bbZnHpATQWg4JbSQ6LXRmR5k6bNMxrXEbGg10aZMK0TXMcYjQeyFr2qYjEVOkzJZnGYiOOTI246yysUiDCR3lZRsrFHCkkkjBfuKopIXZOgD11VKVq87pVheUovKQjisca70GlldkjjUk6DO6jfgeek3dyprrx6xcRxJspZSMa4VxuEhYHMMGdrvppRDzDWeilBc/weePAzpZ4QO80jPIvt9cH86tWkVsXibcwkCmOfIccbUKMNpLylElp0cEELHVZ9Dwu9jrqOPhhJ+syFWPiGDRVudyfmp0UHtAVgfBHJrKoTrTEEkch8d7DVRzH5K39oR8mKVjsxxxIl4zNVjjh8XeFmB79fopMdHKwcu1tYdYdzRyWZiAVXI7VsbfuxyDKZKYCWN/8Hii9CvGHQgkWfvvTyL8q5kiRmA3Xj8A+X1VaB0+jqxko2zZuAWJpAG/S0GhWjjI39qq8i/Amc+eunjHQ19VcXHGBNBbaC9x8eugzJ97OHKtZjB14j18mejUYv182pLEmSZDBNZMf5SVa0jyNRpdp9xxxdwZnsyxetXb+ImSKKa5KJp54DXhsVnk0QxkerJ/UfwHaL4VhrpezmIstiaHc61Ya1LKNM2q8JihSVJGjsCMfpEcdlHjC+Pa0UJIVT0lU7ljOc0chV+Hxjb6xFjNNd1+/KtPPi51fs53wDVptE5Ur5DFOJ8j2YLZZXs7jN9KRvi9v5fuCr35mKGCwr2mjxHcMsHcSSwyV1evQnMEix2V3G0ZdTIyDckiOPESAMVeniZu1cZZymVEKTZXDwy4JhJHJIktqJZllNYgPyKsEUsYxGRy1IDte/nPC51tBoojb4VVo+RxVeEzzJtc6yrojQR2PkQh1SEY2d5QYbjFI4gBiFHaiFEjysP0eqcmHxmBlhNr6TI9wWaGCxwRfc9x4AsskUcTKVKCpGWnlcFBGgV22UDc/Zs96xk4WFZrdPDLZyt4K5jbjIdJM8gYFW9+Qe2gP3SM5jXasRCrtfSAy85Aw/AmruOPdgugsQtj1UC6Ie1SpjzQTZR6iCSe61zc+DXtky5NK4xqkqIstlbHgsO5K7w0xLlocPFYhuZe2iCNcPNDJbMJkVI/raIB9mQJzLySGKT7eRQInialzMiYixmoYrFPHVSxkGTglaqs4R5HSCeP/jLI4ARImk+AvJyRpwfqT5A5j9LmV5gyotbc6bhJ2Z01FmeO+QYJ3bMTNBl51dR1OX34Jv8A3fP0M40V+cE1bGWauryw5dZ7ykmxnv3N3h3P6fZWzgpUv3e2LFeCMU8sYwcdjTUaGSSjkYI2sOGshvajs2COMRBihYr0ids9p4Pvqpj70Ap43uGOd2mu0mkljt3o51sRi3QlKxxSGLkZGrKAgIIaRQV6g29Ln6onqz9C8SBUvVOZuEojANlYHazbE7a1jzNZKfitpDZc2OQnBKpUJSWo7Cob5dzUzDIM4eDsj1QyWKlFeKyMjULEmhdnZzCNAq0EkjGWEvGQVEYeNtDa78l5d3eleLzANlk/lt8AKbtWDikxAAP1MIRIJn5fLK0UvHRLt8dWcvRj+rD6cvWRbRsXSwNxxvyaWnJdOx23oJDq6VBA8YpEuk29QOVl7CKIxhCT6yXVy3EKAX0qSDDC6f8At71R7bzhEM8ww9z3BCYMjNDFC8rMAscVossRkckBI5DEzMyovJ2UGv3dHp5nu2D7kqxZCk4Lx26XNj7Y/wDnV2UTRtoEkKsi+G07Ab6k/YRr+3bv8/5Tsv8Ar3T+O389+pJ351587G9HXjR/9jvR86/v46YQIPx/vxvz+3gg6PXPrPWejo6Ojo6Ohe/8dvz89/8AH/v1g7/Hz0dJNeYeUrHWA7WRKtID5a08gvtpI+gP9W5tVNed6ikiitmFECU32JrozBhKYiNVVZ2e7chyH+JewyW64kFeYqH3E6yhq0yuWDqySyIrqqzjaKrlFCFYoZR6vOH2Y3rzhVnjC6LMpQpKrD7lZWjQsNmM/ceCseQjz5T569RUKpzPHuYqYlRZRhpFutpkp0G2vJ8ek8mvnx6DS2FKlNCewAHThOtrqW8DiujOeMgkWvXfM/q4MfhcDg7ArYrFRVlny3buQMOey89TXsJYkyEE1KpW9pOc0H16PYkQLz9ncSTH2ljfTKW3lMxmLDtLYknejg89TsxYqqLII/q28Uz2bcsbO305SnFEpIdvuXXWRhfU7yHkdg3PXsq62EXWnEWudI4+0kKDSWkhnuWCzdk561M2Gn9tP2qNsQAfbY8hiJ3aXb3fnqp2/l7KNi89kMXete4EzVBpDXsWGUTu14WpK5rRMoCPXlKleW1L+ysitm+yeyspjIrtS7i8XfqQlJoqGYhm+shrqOEiYwI9yvPMdsfqBqRmXiiKjkNJ539S9fh/VJsDSLO1qgckcUZCNI3WQ+/U1Ss6DJuSRbaFOtmAZS21TRmdUMeqhJOWu8pI1cVGpHfqhlc/azeeydWOWxauwUqNnI4OPJ4uKdLaK7z1nVobsM1OJ0qIFsRyNNDKXZUlI6kT0/7dx9vtfF0JfYePH3Lt9MXmWo35UCMqGCaCIvDPDZnQ23DD7EnQopCDpk3qY9e/HfpJ1oIUnliHB5C1DYexjtzRi2VzMqp9kQ6HqWIWBDjCkhjyK+fPsJMKBaTxSWKaQrGiRCweG7/kzFnJ9uW69StGxsT9wVJ3RLF6ZI5CGu2YxdnsV5FFaxHBG8fNJldp2P3KYXtCTFRQ5ynZmkiT+WwYa1DGZo6ldWhWcVkArRRyhvfqPLJEwjeIRAIWITiL+rDL9SB87Ny0KzqbbJmaCPvLvSVrWunlZdx/qx04pMmtr2SY+hs4RXnl2UlrFHIAZHRIbxOrvzOZqLG4utlbMeTzFOKEQ5DlIJo7iS2ZC8EEbSyySMbM0cpkfTpplhj0vDw7V7IxRs5OzUikqYy0z+9jxGHD1V+jJjltNFGAm6cDCKJQ0TgpzkRjy3+rtrPUTs/v85eyhaXC6iBrKbciOxxIdzVSmudY1ciVJR9w9WtKIoXtl11qKS6JIL7TzCfBuA7jyfa3cVTPRWZRcqWRPZ4yK9ieMuFmDRs7Fi2lkEcvBxw1IuiB0/s7h6GQw8+EtRQGtdqezBWRDxjZtmEuYowYx/lLoCV5bAVhy6mS55lZb1U+kSqv74uYr9VIn5sIt2M5HZ/K+5rK2kuNO3xQxfoG1E2xkrAOgZiIyRCYWMRGn6vb3Pk8b6h+n9ZrohmzNuxTxCZGukwgrR379BGvyQr96oak5tMsgBQRTEDkg5VN7aFzsLvn3a/1Jx2PazcfHSMpltSQUrUgo8ihDEzRrB7sQKuHTYcch1TE5H9MvPV5rdHD424u5C3cYOh0gaW8xmS0EeJcQA2s2IK7qyhjRZUCLPAJsxp3OEwIzK0pPh3eMsHh7sksdWvVs3oqxEYmavI6TRRE+1K4lQgK6BW9uYKw8BgD4E/Xu5sc0CT3LtWhLZHvyVzZiR687hGaI+1JpirFl5Rc1cAuCAepRvRh6YfXFxzhs42fU3+PoLirvYPIsPknWSNEScMTTtpH56PnpVpZ09lWyVrrSRHszV0ApIooznjM9CtT856K5zuS1k7VmpFh6yyV5cVYhkNasJRwlM1ulXkaKeSGRS1ZrXtn3eHBwUA6RJfU3tmr/L4lK5exW2tgios94n3FUx17ViMxok8ZdJEgMvNSf0/LWiuGNZyJtZkWtbaQY0ygz2bibKaUqyWASQBjg/baWNMsosO7tw18givtLmRMr4ZHGJGc4gXPtl2PWzEUA/mmaOWyMNarWtziNYYogVVxEldJp1ad+BlMthzOY3X7I0c8qy9yjFxSSfSY6StVsW7dqjFIf6wiaRwnvWPYgZ4Y+YRfahSJ5UPEkoUDzE/Cf7J+fz/z6kvx+Pj8f6f9/wD3PTJ/1+fzo7H/AF/P+vX70dHR0dHR0dHSRc5Zy903Gmkg5jRyspoI8ItjV3UVhSpHPCY4zmSRRyBlvilEj2kfBOCfGd4S4REkgE1zE9SMBf7h7SylTFZu329lIVS/RylRBMYJ6JNjhYr7RrFOZEdLEUbrN+iSBlmjTbm7OyGMxvcmLnzOLXL4uScVrtIyivK0NnUXu1bDLIkVuF2WSH3YpoJOLQzRmOVmSsD6jefvUFxxYHoOaKIHLQYUeBY1Go+zkgbhtdICV9RMlcjcWS8ztgVxIbFPXru+O9O5wxEZJkyQucrKht356m40w47uargcxIkUbJmILE1W/JWdOUNpJJPYmeWQKCht25FCkEtpQHvD2/6Pdhd01FyvY/dCY9J5JYpe3s7AakaXInH1NVWsLdwrlWIE5x9qu3IhjCi+Fx/TR66c8EZxLzJo8Vp2tcOqz+7tMzuaitSS14muiS9TWUUormke1z45KWGV7lQZHvMilXxh9Re7KTG02QyFZIwOLT0f5pSkIH3AtGWCnfNifZmPAH+oSoY+PcHoFmIUUHsZcnXYlpLWBsCvJtCWBL02tiQEDQ5ShWBUDQ0ofT/2nPVJZ09rdQoHH/ImZq4sMkafZcVMYazNNkAr4KQxPCyHPhmQ6zppK8BnRIiHK8wowHdLeE9ZO4snLbir2u2cpDTiieSSf+WxMJTIsAris9Y3HcEe/MHiEkcZaVgEAUxDlvTrtnEyxx2jm8DflsSxtVluWBNGIVMrtMqzc4jGP6MYcL7rgIiEMCIu/WP+rNsOGqvNzeUPTFw8Ha3V+fN56fpeDX7WgOKHCjWY4TmRo8+zEwkeSkiMyGb6dpzo1IDUAdpXH2r3n3L3Vl79dsPgDXxiwS2EpmKna3MCqsYp3ioz7dXflGxbyAqjk3HXPdkdu9vY3G3K3cmScZZZljaeZnQvXZFmUPXdrcDa4xpzj0qKzI4VOITzhz9QTmXnfL2FvO9HvEWaitkPfE0BPTnq8PmkFG9txpZZ87P0lMg4r3tUTiTwva57Hk9lR+4qV6jd5z4K1CLGKxIkkVfusCj74Zi0apE0c/uO+go9tVLuTwUOCB0tenvaePzUbrB3LkWkZ/to0LtmxPKAAw41RHNZbkykbELDwS+t7OJyH+sLguMJM7P1MDha/wCRqyH9prKulq9BYU0SzMjFNJ1hw3h6OACuf3UsKPdTJcpWtayFCGVDgQcPN3dk4qV6v2V23i6H63uT4iNpzANlvpqkh/r2JiNK0qLWUEswZgqmZcR6LUshkPo813RnaSTcnepYyMcNlhwARYkkgjaGMlQSZijx+QdkhT5eg/VE9YlDw0XX1d9wYIlvAl2WHj5jiudffcpwTOBLqIAgzZkZk+kVzJAY10xWSWKAsUMsbJDOjAd837Hc1vCPkJcQuJnrHIVLOJxtcCOwnKu3vJTKpSljj0jzSGKIMUMsUgQKqeoP8N1HA4WbNYftzPZuCvBEluebJ3HsQSTK717i1EmJtQ2VJ4S0g7h4ys0PFvvZHlf1RvWbq6SDYb3knRxtr7sht7ITP8dcUQZIjEAgA1Q2QI91V+yiPfIA+sJ3Y6Q5XNYJg+n3me4swMrKaeVhGOUoa5otPZl4nYlEtiCIwuGIBWT3CVU6PI9Qx2/6bR2MbEr9qZWXI8pBMbePeOItpWiIjtPGVHEtE+1VufElQoLF2eH9dW7us+SyseS8GPSqsKmik0dtod1pXy5RniaWpr7MtViwNhK5pR2f24VeQsdjiEN5ebYwzHc/eUmSStj62XsTTqGitTcTShWORnA9y5NPDWmK62VqtNw4mMoy+JIo+kNepVW/mo8PhMdEr/UvPcpRWCw8iM1KgbJWZpS3COvESrKX9zgidWlf0pgXml9L1DzjobWXbTOdzt2dZKnNK2fKy1ckiizlxZ+6CM10/Rx40i9EsUKQg0k6khR3G+kfILbL0k7by+A7bNjPZBb+Uzk6ZOcQh2gqo8KpDXWaXc1mQKDJNYfiHZ1WNFjReVOPVnMYfJ91SVMDXlhxeFh/lkUswEclqaOV5LE4gRnWtCHcxQwGSRwsfuSESuyrJp1KnUY9HR0dHR0dHR0dcXIjkXunf+URe6oq/wAd0/n/AG/5dYOtHfka8/6f7/6/B8dYIB/G/wBv9f8A9H9j8j8dVPv1k+JMAHci2O9ym4hSwrawcjt+N3SJaMraqxi2Zae6o2liq9wSXhZrXAK0ssKTnheJ8YTT0l9R5Jcb3hkInVKElq1PUqSuI7GPtVohHOvNZgDBbgkuHmEkCsz81jEfLj9Av4f+48jN2k+HxzYzI0Y1p38rir6JFYhv2Ypaq2qU/Fl4yJQUFHVVQohJMkhZqxtksKZNsSUfJtxOAJ8hsj3n6GJYwUc5GNFMjamIVAo5SJ/agEMiEciBViJ5dIyB4I4fq8TVEjiMrKv08kMzBuZZZISpJbX3CVV/bbjkep9ivtU1IkuVxJ23kNYEQYBfCsOSngAGLEcCNkEggdbBQcn8o59ozUPqP2WTJHY0II7pcc7VGnk/uxFSN7P7hr8+DWtRq9zM/a1Ei72x21eZlt9i4q+sjSSM61vbbZ4hRvR8fedqjA+CdAOOXae68m0ZRs/VvIW8jJU8de+0ji3I2oCSCoI8lDrwOuiz9YPqVGhYcr1Y6mWwTG+Ifq0I9rkIjje34WTHsR4k8YxBqiDN4q9PbY9q9lT047JYLw7FqRAE+Oc/AaUcP6bR6IRiSykHaBgp5AEbVs17rsgPYqyl00bPauCfnGDqc80j9wzFG4RMRwVyWcMDrppHKnOnN3IKngaXle+18Uznr9Pd39rZAexXdkV8Ul06IquG5yvRBta5V7L37/Eh4XtrtnDuJqeCq0XQqTLXqVopAQPuKzGu0hJPkHfwAGH27CZ3D3Vna6vUw2Tw1Oq4WMxU8bSoRkDaleNE1g3Ik+T58aB103N9daxRe8cucjMZ37tZWQm9k8kVW95c4jHOX9jv+FyOVEVUb8orr+pru3tpHdcnyoad2A8aBBWJfB3oDfhiNA7PUUtkspXsCxYuYhDyPustOFpWA3wJeWxIzBj8KwbRH2j8Fd8TrdFyPRrxWG0IOOjyTq2aKTDhxIc+MFXoYjXkHGAF6tXyI1BuRni5Hd+ydIGRrY3FzyZ6epwnEKwzMyM8z1zKp9rftrK8gZiU+4jXwAdHqw2A9TJu9+1bXYNnItVRI3sVspHPDG1aaCMsjMztqOuHAIjLJoklT+ClbsjuwSEDN2bXMCYzXpCluknb7RPFXp9rCWavl3VRuKZrX/H7la5ytWhdx0kZePFlCyqUaT7ApkAb5sNpVPw5IJ0xPEkbNSsnkM1WuWa03ddy2IJpIy1eeZ1dI2KAg1hGsgOvt3IUYkAgD5ks9CfBETV8pcb0czPX2xnaff4ukHJvCICBCi3unp62fLmQRvPNsWghSLBYw3TYjHGULTuYxHNVMqmLJ5uhVnSJlmtQQPXrM6xsGlGw0gUOSy8uSqvEktvRJbps9wZOWpg8hYhnlSaGpZnFiyTLLzjidgEVmK7J4/c5caG2H46+nll83QY7O0uTytNW53M5qtiUWfoaeIGBVU9NVBbCra2vhR2sDGhw4gRBAETWsYxiIidWliRIo1ijRY44wI40Xwqog4qAPwAABr+3VM5JHlkeWRi8kjtJI7HbO7kszMfyWJJP9z173Xp1p0dHR0dHR0dHR0L+F/8A3o/3/v56OouP1IuHIHJPGT4jHVg5TbchlNYjjokBkqqlNnTEHJRhjteESKsqAdpa1UUpxqJ6GDUj+I3t97GOo5CjLBDZr5qOdveYR+0J6crzSqG086SLES6RP/hiGlki9s8lsn/Dl3SmD7pnS1FPPXnxioYoBJ/Wlr3Eesrsu410x4iOYFbHJkXz4FW7b+nenzRSCqGDkTkkoybZGEVFuJhXnGSYNWse8ZlG1Bp7it83CciuTs9z6yRZOyFCzWGlCgRxlQREVUkf09lmMZbkN+BtW/fQulYzrZKy0rQ+ykjmSKsG5NViAASFwPGo0AI4k7Db87ADNue/TVf7SJj/ALBWNdaQLUrrUjIYo7pEInsOcNzUYwr1T6ZPExgiYRz3+SMRrfJ3dsd0RYl7wuGRoZ4iIRyLlZlB+7R2V8HQ0PPEDZIHXJLHVsnlIsRjUqRzVX2D4J2ykAfB8Ekg7/AHSKcx+lq3mpKdU4yI4LFYjVPWw1kjcg17mGeM1hRLIIjVP/ea1jWN7I1Gr04e3O8xAyrauz8wN6SWRl5MQeLKxCkIAwB1yc+QNEdcVipj5X39JSfydN7JVwqBQQHXTE+QdaCnx+pvHTJjen7UxJiJJx8UqEIXyYrfdIxG9xNVj2laxFRUf+UVvw5UX5b3kj/zZQeD+nkZVYDelcAMSdkEed/jY8EedAdIVvEUS+/5dVdHc7b2yDx/yldsoBIBIUbA1snQ31vlL6biyyuetHCA4UZxWikwVVj2oxjCib37McrXIPz7r5ta7u9V79ukybu2UDSWZ3BkIYxTEADWwfJOgB50Brz87OukV8Pj0lJNKuiquz7sIddtv87OyPGv1DkQCR1lj9PdhVlL9mDXijzANa2RXxkVIxiefg14Xjb5/SkchHNc1WE+F83IqdanucWlVrPvTe249xJJNBoxxDryUluMirxLAeS3gbGjxyU2irzw0ZFx6zQuiPCo0rupCs0elQkPptHe9bI2SenB0PCFgEVSGw+lmT2hiiPIiDVzDkYWOGRKGjkT2eyqQyCc13topPNHL+1EuXMpLLPJVWWOD3JDFDO25I0JJVS22J4g8eezsaPx56SY6csFauLrRy2I41E80ZAWWQLx5ga0ocDlxTfkkEa2ep7v0vOGq9ee+Ifpa8TJlDt83cGeoRGL9LTGkz5TDe6/zJGc4KqJ7Uf9KVjezCOG+QN5+naS3e6MY0gYhJ/fKk74iNWccvu2Pv8AuB1shCNHbcYy9RrIr9vZMKw4zQGBSd/+q6R6XR1+jY15UCQH8DdytidmNT+fFO/+qqndV/5r89WwUaA/38+eqsH+3wPA/PgfH7/jrl1no6Ojo6Ojo6Ojo6Ojo6bN6mqEE/j6/sJqllxokUKsq1ax8YpX++Eqq1WtVWyozyR5QzF9hwmsVVYiPV8MesWMhtdrZOzZZ5UhSD2qfHae68csTyFlUvp4dxsu+IUhtc1BEi+mNl4u6sfFH/TMwnjawpbmg1E8fEAkco5VWRDx2G/zAb3Wu1VIi2Vt9JFUkV5lVauTHRhoKCeZxAFApiLHeIBBIwgjljOYoitVznuV3z8ERih/whlMCIqPHMVSWAoPuikPkqfaKvtSVY8Cp+49X0jsByiWWVZBrhNCCY5PcACmNvs5oZNoyuFZCrbAAA6SLYysZhaSdo9I9ldVRitUrnCed/tFRxpUgCgQhnQYcdHTJLo8U7mCc9WjKR7l6eXaHZOV71uTV8e4oQQQtYkv3IppKnhljMKyxroyuHDoqc/IfYGjqHPWf137S9D8DVzfcryZB7lkUYsTjbdNMmYlgezPfkrWSZBTpxxr9RII24LJHrm7qhZhqPUJQXhg5bi/GaLke8viqlfAzlba3dpMkI1qAdGqiQar3ojUVxZtTIgJLAiicy5YNxfGbsB6IYWvIozGWyGWsoARWoQGnVZSR/U26TWDxI4qTvZOwQWXXz/7m/8AEkz+byJxnpl2PUqh+IimyEF3uXKzfPKRIo4sZQrA8lGik/tMfLOCOs/E8B+sPkawSPB9PHEdOUZ/EdRyLzpxPx5uZEhriEdHXji35EZeQrBXI1joVhGgRxqio8j0UjxSVX9I+0+Bjiwci63x93L2EmPIfdxX6nYJ1sc1XY5EeFOsUf4nP4kctqSDIYmrM5jZKN1O16kpcgtwFJjLYU/5QJdc/K7+SGkX/KtHXnuaDccd63jWZn9NaY600H0BhUgdNSnOKfnxXNW3TUMJ8dgznlRxl0Mue0caXVkjxJKSmoV/0kwhLtjbV/GTqzJqc/WVCy/qT4WQFdedSSNrzrjo9Lna38bPf2Lnkh7+wOKzNavaNK3Yq1ZcJYSxGzKyJarSZDH2ZYiCpYx6ckBQPkbdVT8faZmLd56+FpK+Sd8d1lDqZsIiPiyHQ3yHRrQAJftHshTobiFgBQsmtOZhDAVhUZGY7EyeD9mVZa+QSyJB9RVhlQQrFxJE7SKQpdWIQcgp4MqknfVrvTr177V9U/rzjYrGLlomtxp3rdZ5LKWWmjMlSOIxGVYJYjFO5iHtuwAUKeQUaOyDFjxyFGiQyNKcpiNeUMSMN31ZSkahEVEao2KV3w1rnKjkcxO3TVFWZbUVcKTJK/BRojmzD7AA2vJ18AkD52d9SxLfi+kmnZyi10aY+AePEhD4OyAAx3sEqNMdgdTyfpC5dbTmyHfNe9BZrN6SU8bUR0c7pUH7XFRrnopntipce8MqqgWlOoxPeqDayZfSKq57gDna/T1LRlVgugx4xKPksGR2I387YqdeSIS9WLKjCBAOQtWqpRgSPtH9QN/8OmVHJC/Ooz44gGzN1ZnquvR0dHR0dHR0dHR0dHR0dHSIeoEMiRxlpwRfrWlWLFM48MiDdGGKaNxCm79/citavjLEjHuJGeRGN8/FWxb6uRzydl55azTxzLTrziWuNtCILsJkkkHJfch9p2WaMBmaIuEHNl6e3p5KkXd+FZ1R0NmRGR96k9yCQJGPHh2cARNvxKUJHEHcBz6Vx5WvsZ0SNFBCWwlOkr4KGOxPIs4g2PRjjiDGaYomPcAkto2K1rDKoUoDWqXrzyxRwASS3FSLTRvG5nsJC8QYniWJJkPHjzQck4nai6+RymPw9GS/dtslHG42xfvzkMfZq0a0lmSZgWJ/pxxldjmFP2/dyEhrzerTmt242kqqgDkgrIiqho7joLyjTK6qStgz3BchZjhihJop0Uj0qYllfSo0KMT6EM090O2cF/5d7fxuEisyStVWRrMzeRNZsOJpmVAAFXk32lSdb4gtxDH85v8AEd6uWvWf1GzfdMEEmGpX/phXoxOVK4irTqV8RTtyFQZpPoYYrttW3GmRtyRRIogErqV6KtTgCl5O4r5C5IyfFOY5Ur8etxrLig0prONV0TpLJsKHtMXusJsINDGlHFN2GSZMsajSQZ62lrUz4mWkxnPnF2a5E9aaZYY3SMSM6yc2VeRYqySwuF2w5jkdoRJo8H30+jedw9xMv27mcnQx1TJQ4/6qaWK+luxFC8/vxRWKV6jJWgiZ6wsVy80dmASzPGy1mQoNl+PfUtwd6rxr6dQ5DOch1FzeRsDydxW/C3GGXDHU0QHI19pRzNRnqDK/Z5MW7vNBpplS+LEFIj++GU0rX+0UcsF5fpQiuCVSVOEiGMbDTFlJQQhfuJYBgB5XZO5Kp0b2H7igr9pww1JEZ4ql+oKt6iKRk011bZ9+GvTaqqSPPYMDRv7sIJl2Cu/6kvrMu/Upc8p5nJam0veALvScZ3U7WyIr4eT2nK3FGSPk9BtsRALDDQQpOgurCaLQWObdIvNJn6nMHu3Ra8AIJOnJWxO0yiVzAWjI0rhJZIE4F0QLxBdmLs4+51ADDfSp333WmavX6cFqSTArcxoa2Ub6e5kcfVMU89XkscKGzakZS9YyvLHHCkrxxoUMWPBXIB8VtYVeSRIkV95IhQI0NSm+jFbGtILofYLvcfBHoHgbnradDaOSkKwGaYKZGhujIiyRJZr2aUrMsNyJoGKnRjZ/tWRfkfaTs71vWm2ACE7sTuy72p3FiMxXQSyY/J1bcMMkjew9iKwjqsxH3xR2Cv08jRaZRKJG2Yl3LJk4se4qagkD3JVWeLFlxHkZEQxayYFhhMniRpBsVRFakgTxvChhq17FRPF1be4KFmhlHpyMfdquY1aNivNBxaOUBQpXnGyONaILDW97H2T7M7jx3dPbWK7ioIRQzNGK6sU/FpIXlUJPUlU/bJLXlMleTiSpZWPkaPVkL9HvNxYVlv7VjGOMPMQGNcOIoWABb27EaBxFIVPJhaEyiRj3o+OjHEc1UGxs0ejcCrJkJdHmtWIciulKTTjQZj8ybhfyCefIMdEsFin1essyY+AAKhtyEqGBG4IQNhANoAZAeJ0AeQXYHU7PU+dQj0dHR0dHR0dHR0dHR0dHR1oPJEZZmTv4SjQjJtHaBcvl4uY8cdZA3/5ViPH2c1O6r3RPFfx0y++ITYweUq8Oa28RkovnREiQieIk7HgmJl+3k3nQXzvpwdsS+xnMVOG4PDkabAneiGlEZX7fIP372PwD1Wm5l5aynD8q4pLslkwPIF1a5eiq6fL22vlW+gnVx4/2yFW1qIMkq1kGaggpNhPnNR7YYXyQvalI+xO2LWbvXv5bPUr1cflqclmN5n+qhZJ+bvVgRHcvZMcgjlJAaVeIUFd9TJ/ET619pelna9Sr3dS7ju3+9O383hu34sV27Yy1HI3Z6D14sbcsxTQ+3N/iI5BS5/UNAxkgEoQgQm3nptudvqmWa4TmohtHf4jJ1NHX8WwMZaE0+xikpMjABM5L2EKvITS2eW0MCllKjawhKWwA+WyTXz2it1FSlmkPH6g8pUCJ7PtKfcDgRgzNwQl1fRHhipUkEdfCap2HfzeReaOHuRRbmxdZoFwcWMUzWq5rVoUky9+EEWXpWFhcIVkNaRGIZJIk8/PcOZuZMwGSj8c80a+x5LoIGv48y0p/pqlWGypLPek43FJpL7PWcrSUaR9lAmxrCGfVZslY2tsLKegggcYnZDXWN1Qx2ZjKEkjQmsWkBf2mCMpJQckOxzBVVLNpfJfOH7PoY+elixjc3bs5CEXqFOzH2vLLYilutjXaK5XZ7ChbyyRPH9TV9tUeR/bQButp435E46tbrP8Apw4m4+kWs29Lp5lZENp8Fs8kCXmIN7e3IJlTybD1+Ic8FdQWljBHKx86stAtiy4kqY2bFkP64JI+S1oY1Z2ZipR0kRTGHYjUishK8SUcqVLgMN66f/b2ZoTXa/bmHpM8ipZeu311G1TRqiWPcTjfWxXR4Vru8XOKVXQiRHcyK4a7sMZV851NfydoBervQff8DueTMnDk6D0/S5lnxNxTaLQbjU43LHWni12IxU1kuCSJWQakrK6ovJVPUzajMXpqvDIJwspFptxNKNtX5SQxHhI8SgIqxqTrioVVAcohAPSv/KK2YSrlLC5+dp6M9usktvFyP9JTYx2LNaqEjSKrE/IBYwEIDPDCVQuiUW/polcc8sU1DcUfOmdvsvc0+nn5W7weO5Hup1BT19ByJIu62Vw/tZtfMzJMlYV92PZRHy8kgJIxmt2yAy4wMtV9tyoSZZAQ2nSKT7Qok5f0pXBRozsPscfBYDwOtrfbkeNmWP2cok8ckcvsyU61xisIgttMy0pvNf2JIi03ExEOOTITsSI8E63E3AS0FPPmyLnFUdND1+d0OMvsbbUUkEcdWOM+FZfco5ZksqvMEZLUc2QxSvSN2Y4iQn3xgLMN63mnkry1rE8aCNnaOwm0SMRpA68XAAOvbcgIAT8jX0D/AIevVLt3O4DDendKrmK+e7bw8hyG8RNXxkSQzHdma208qxGy06FUdUaWd3aJChYraj/SUqCi46314dzjlkTcrRpLIjEMVkCtm2ntEaFjI6LHS7aNVA3xciIvfsjepP8ASpRJSyVz2liEktOBETfFVhi2VAA4gbkV9jZZmdjrrt9SxJBbxlN5mmZI7k7SN5LGWwqqTr4JWJl0fI4j45AdS69S51GfR0dHR0dHR0dHR0dHR0dHWv6MH1FbLYvdWrDnt7I1ru6khSGfu8vlre6ovk3uvdO3b89I2bhE1ORNEkx2EB4gj+rVni8k/o0XDbX7jrQ+eu/GzGC7A41sT1mG246MdmJ9j9zoHwfxsDyfFUT1rUk+6ZbRaWfWVugp91jtjQWNkSZGBGtsbq6m4ZJkfaK24nhK6tjWQYUkUE5HMlGE4blVeqJdlZml2t3xlbeVnarSEVuOSSOu0kksyTxNHDwhV9uJIpJo3JjKgED+oSDPX8Rfpf3B6xekOJ7b7RpUrXcVXujtTPYyfIXoaNfHDG25bFi9DcspIUP08j1pIYVMzmXSqVXj02/ZcgcwUlntuTI3JlZMka/lDj7kfL5XFZXa6WFxxZ8d77Ucl4/I5gttoeLlNkpuy1l63SCs6RzZwbiV96O+JYTZq2K7c9SsF3JlbdGlZsR2AFvQLbrrBEEgnMhgrvJNCCecxaVZYy0itoMzgnqgnf8A/Dp62+ltC73tm7eHyNPLdzYpocR2smSzU/b0tG1kMzjakCbxFf8AllrIWrsM9iSGxyksR/UuFkdww8vKmvja3CDPE5Fwel40W2Jx7pYpuIOH5ORr7XkaTywzLQNLawN0KNVE3FrLvc/mtDKJIJAdOixXTKoMoaPkSybjZlnQxB/bkUwowR39whZeMo4CU8h97bI48vkivFOxfkv0oGXM0L2MWeSldmTC4RqUb5Q5ZaSWpFu8T9fLI8UNkiyVZ4FdoBxCcwt7QYfljPbfP5m2x+4q4+5bUzq7mr0xQc5BTQ1FkXYGNEh8Mzqlx7WBtp0aAeUYqiLYJUUyiStZGh4jKpKrIpjl+4giaqoHLlybYgddnkfPjWyAQAQVzEY5KeYr5GOtLSvxpchgdMl24KzCyHeeSRIqUkStKliRUaQlBGTHGiooRdUt+TNRTly2Qy8fbyAQMLvOMccLB3vAfJocVx9treGTccXV8/O5PHioaDYSWS3vyhbr7no6y71kinK+HorYzulmKe2gEn2QyQoQIZOMTMjSRIygBYyVDcB+pQxGgTp8PJYrV61eNLRAgnrQNSfE2PbrWHDyVI3igjjhisNyBjLGaTnYMbAzSBlrqdTyTYYCVh9dyG6vy1txxyZxA/L8hcNuz1zX4nkXlDO8uy8rC02L2mwto1XltNms/c5Ef2S2qKqjti4ctTY1H3KvioOb7txnb61ochNIzWo54o4q8KTPHAXWR1leOYtGFbiIlKNyRinlUOpV9PvSXv31JxuU/lk1OCnQrvRnTuKpLjmnhyt769aNS3XmtF1hemkodo5YYYWSszHkEj9/j+pi0Ok3VlXwuPM63ecjWWwfluMK/W12NzVWSDDrMzT1QdrV1d02JTQh2YfM7UfJJMJKI3yJ4BizvPuCh3BJSGMk5wRmd5a/sSxNFNIYxCUEqKrD2lKgrvgVO+JfRtT6E+l/cvpzH3rJ3PjsPTtZvL4+bGvg7Ys1JMdVpzRNWXkI7EK155ORWZB7hfmCOHEXI/0u4DQ+m37iisV1jsbcT1arlerqaDWVJEL37or2kjuaqtVWqiJ8+SL1NPppAIu21YkEyW5SSN7/AKaxxgEn5H27/Otn/kh+o0xl7hZeXJY60XE/j+ozyfb+w0QNaGtdSP8AUh9MLo6Ojo6Ojo6Ojo6Ojo6OjrAsh+5Gei/ju1O/f8e55CVf90Qn/wB7dcl1VMO38gSRnR+NhtDf9jvTf/TvwQCD6Rb5niTsqQNHXnRII/uDpvB/yj9uqn/qfsZcbUWsSyRI1lHlHHOjqwrhsc0rlJ3e1ntJ7T3O+CK9iqj2jRzW90+ePe1CCLufNpDxCw5Cyo9sMC0fuOVlWQbXZ5EISE5EtoHiSb+9hWJp+3cPPMCsk+PqllJG/c4KHTiNfcJAG8AMo4Hej4ZKYtjdSoQYUiTCizDGjSSAI+Iz2yI5hI7VE8Y2fUeCo9HERHuKNqtINXM6buKx5yGSqVmmWrJcnSubUg1DES3F2YhgWA/UFJBZgAD5PTpzuWjweEy2U+llyIxuPs2lqwKrWZxDE0qxxrv7mdPtfYbjEXcglAOuvTcOV100Zp0+ZEhTospQOk0pgmrjDpY1ycMmZCsYl1WjsoT19o9VOi20wgmCiikQHhIew3avbndGIFl6vdLYyrII/oKGThXlPMxZY47dW0zrSZgUWV4ZZlQkwvIJleJacd+9y+l3eE+Pr5n0th7kyUbTnLZnAyRwHHU4oUnntYjL441beZhGpY4IrQg+oMSWY4/Yk90NknemvKxbykDY5Ti4P3c8mMS1mUQpsyGeKGZJbMnSzXcmzNGJHD9wkz3lMeCyQMClsbV5wCdMVnvuvkMdRyWQ7ZjTIy3oknpQi1KpqQe8ecPvDTyh0VEH9SNi6sFZNFizenP8PlrB57M4LtPviabCRYm1LQv2v5dDKuasmBJFtPVmcR0kR3nkR096NE+mklR1kOJC4RsJ47YWRuq+tPX21nmwQ7GBKiR5wY8pgzMHd3lhY3ba5Y5oNmOEacrYTveFW1aFGyOZNsV+5+5IbdRs4kc1W5erWaRaLH1mShJxEiTRsXlEyGMgOSibLb2CzyLhIfSr05s4u5T7ElNHKYfCX8dmGjt9w5hJMxBLIK8lK+WjofSfTury1mWewFUJWZ45ekH3T9Fl9WTOXswso1VDq3hN7kxW/TTIoZkb2WHkGUCkA5ikCMpR/DEacrfhI/yeHmxlx6lhkmmjSN+SNI6SCRAyEtKsch/4gIBUeQfkEdT9gM9S7gxNfLY1JoaU0tiNIp0hjaNopDFIB7DyQ8dAFWikZG8FSCCAuPHsyZZ2ccQDnl+2MMn2mKOUgA+bFMx4URrgDaDurGm83vUjV7PKNqP66VQlhpdhfuGlAAAABIAOyF+NnyekrKWAqnYVSSVO1YMZGDBXDA/eN8dkAAMh+Trq79+nbSBpfSNxQ4KuclxDub173kcR732F5PRXuVyI5PL6dOyKndERP8/NqeyoBB21jV1ovHJK3knZkmc7JPn4AHVT+8ZjP3FkCf8A02ih/wDwhQH/AE8kjX9unudOrpsdHR0dHR0dHR0dHR0dHR0dY8r/AMAn+iNd/wCl7Xf4X/H/AMp+evGwCYJdDkeBPH99edf8+t4/1qN62wG/7nwP+/VVD1+x2VPK/I0cEoClHohNP4sQh4isbJc1pGOVPbbIe5F8FRrStewiNT+09fn733BHH3Zm4UkLyRXpUdIuZ4zakUq4BICtsLGHGgzApyPk379O5nsdtYawIysVihHInLQEiERjcRJ8lGDBtbYESKxHkGMuJbPjymPkSXJEG0cwqJIao1Y1zjjXsJWN7MGpVI5zWucrXM8uwWtRlyxOmt6YaLFPPgl+SMR8kk7U/vrZ0x2ZC8FW0F5sSocEbGl4OPgrrWtADx5H431q/JcqrvIUwRXxixmtZLCALXRFI0rnOA4TRFaWQRjl7Mc4YnSHuQhGNRzSP6qzu0paN5FLDjoSa0rHzGI2bbAMW2pQsQfBB89eVdBXKkRfpBU/pYHXgksYyicgTv4A+dfgt7MeGBogQTGeBpRqIkpSDMPs1HL5t95yhK4iylUvuKjuzewxuc5WrUE07OxkZlJkc/qJ1vyWLqQAWPk8TtfjeydayxIPudU58By4IujoEoQCPuCEgH52Ty18a1jRSwpG8Wjf7hDEUSNUvtvA5vfs8TmNX4cJ3k5HlYdXK7y7jXsrQiRl0rOdafTSGSQppht/PHfLjrTHwDpSRrpEl4l2IWPiAQSEUIrIQdKAAAPtAA34JIX510kU6wQhn9/he6uaQiucqtai9+yuXuqtXy7duyIqKvZFajenDXikfgXLn9J22ywI0rEnyCFb8Efb8AfG29bkVQyoERdsCi6Ub/VsgHYVvkEa2fk+enO8A2D324HV6smndEitO6O5jmAO9wke+RH7+TSCHGb3IQrWFMoFVBkI1XOepCFcKgB5cQxUaAaQ6Ynl/YjWj5J/uemLln3C/IMoJJTkSxaNWLHgxOxojyB4+Tr46+gV6ZsnJw/APEWWmhdHmVGCzoZUd40CSPIkQmzygINvwwoXS1GVv5QjXo79/kiWmwsDVsXQrt4aGrCjeACGKByCB4GuQ8D4Ox1U/M2RbyuQnXystydlO97TmVU7Gx5VQfn4I/Gul06VOkzo6Ojo6Ojo6Ojo6Ojo6OjrrK3zGRnx+9jmL3TunZydl+P5/Pwnx3X47p1q6hlZT8MrKfG/DAqfGwT4J2AdkeOjeiDreiCB/cEEf99dVk/1NsxUUnI1vYnWYaTZAAOVYoN3m8scT46Cc4w2x5IRL2YjmnY9GsRDI7t7qUa9S8XTqd0334yxT2JI2nt8H4TyxRtBoyA7lKqRHEo3wBIJLAcbwelOSu3O26CqkBhrxP7NVWjYwxzMspb2lPuRFzttjlyYjXEFg8AOg3tIar08Mstr5UQk6qkIwJgujjP49yObKYkcKiaj0c73Xj8SuNHcRhWoVjrSmE0BVUlEg91PvUfn9thh8EqNnbeCNjqZUdAYi6zQoFDtyjLB2A+AYwfDA7Y6XevPx4TTd2FhpKLLLm7Ksjjrq6NHmOW3F7zzKCOJXyBDmRk8nMZ4jG5z4yK1j1b2c5vXdQg9iWY26rn7mAHtggjkRskhvHMD7gA34Gh1lbEEbyhrCs7aKl0bwignSjwABsct68bAPnR1013MrQpHs59aTurXOFIsIhTtcjUYVi/TyEe9UYjnq5GPEj1VvZey9dkcZ2ypBJwLMeIVgoTZ02tfnyP+/wA9Jth65HI2EHhgCoARzvYQE68/nW/PHyT89aLodTCmuG1tjAYohuE7tLeby7u7t9oQgL7fZqIz5VUd491IvdE6VIIJgAFgkOgeRKb5fdyBLN40CSfPhQRrx0iWZIlMh+oiKk8hwKg718KoPknyAR5J8/PkJ1Z3Q/eUrnmKgB/8UaIckhFe9rfj31ENjezlb4tYrkRVcjmIidL9KCYKAAsTBQfckdSxJ8+F87G9lSRreh02L0kLkHlJKNED2wVUE/p9wlB4B/UQ3I/pBB6e16CKw/IPqL4S40hfaUFsuVcXTzG2UYlgYdUW3HY3doWIOSwD3VsKKYYEcN7PuUmCkl6gY5jnhg6j2stQhHKYyW64k2o9tYjKpkml3sPoBj9w0XKkeFK9R/3Najq4i/ZYmH2KVpowz7ldzGUghHj7ebsuiW2UDDQJU9fR+Yxo2oxidmtREanz8InwiJ3VfhERET/bq0CgKAANAeAP7DwP+g0P9OqnE7/3+Sdn/qST/beuuXW3WOjo6Ojo6Ojo6Ojo6Ojo6OuLu6J8fyqIv+URV7d0/wCv+nyn4+cHz/2/3/y6OoPf1buPwRszB2qaUlI+W2XXw4MavOYRVhx/uBiyDMM58iXIlnIMUYMU7BBehnAUvZyVY9ccWlPIY/IjJCo2RkerFUlqe9RlEaLLI1iYuZFmlmZgPailEafcyxjTdWd9B8vJYju4k4x7a48Jbltw2VS9GJnEcaV4uOvYgiQOfekQuw4Rs2+JqG7lldKJfxa6dkZ11YzwlHTKhKO/neRWNfIMNjKmwVw2p3cVYAise32lVyp7jIlrVbRaCWSq7QRg8bGPkNqCNGAHERxmQsG0Rx4Eed6HndlYsrVjaNBkTAUBVospAIirMx5adxGoH6iSHB+4a/HWYZ09clUCSPlVJGiRXGjJbPecShGrRjV5p53yBj7PD5I32hOaomPVPbaieTClhw7ZCAuxTk9fQO2LH7eCuNFiSNjWtnXXq6yySNMi0bKyjSSRzaLB+J5Ah2jI/G1GgAG+QdpFfWt1HZ9eOjoPcKAiqhbKW8rFciOarCDhl9tezXIqDJ4uVHI/uiNd0u1Vg48DatALwXRrISVGhrZdXAKkkEjx+d664J47JX7atYiMkAfVkAjyDsFdHz8aYf8A3a8dIlY2F2x75HahiuK9XuGeeYyCb8u7/ulRVRfN3dyMErfJ3dO/kvdbqwVpDpTfmKgqAkCHkBsbJCSEE/HnZ/1A6QrkksW+f8viA+WlsE8D58fri+f22V3oE/HWoS9Mq+TXaGvekfusqPTxQyDtRUe5rWqNso3Z/wA+Pm9iu7d3K34VXDXpOoQfQWAZCvttckKkqh+dMU5BV8kAEDWtb8dNK1diIlY5CsRGpaQUoubbAJ0xTmVH52zDY2Qep4P6bnFu5G9b+v2UnCy7zPcRcQW9muxsBkNAy+709rV1WcGQn9yCmglUi37a2C+QaZFgJKsxxgMcw7JZ7DxTHIvanjSQ1YnKGJSIIZWKqhDEgPKU5lTrwpY62AwhH1MyiDGR1K0kkRtTx8xLIHsTwojFwQGYpEJhH5JGyoT42Or4f46mDqD+jo6Ojo6Ojo6Ojo6Ojo6Ojo6Ojo6Ok+5L4q485iy03Fcm5Km2WYnua89VdRWnEM40VBS4ZmqOVAnAVVdHmwjglAf+4RWqiKiRmcDhu4abUM3jquTpswf2LcYkVZF/TLGfDRSgeBJGyuABpvA6VMNm8v29eTJYTJW8ZdjBC2Kkpjcof1RuPKyRMdFopFaNiBtSPHUIfPv9P9wJyToAanibmDkzh2eH6xjqWwjVfJGa+nlOKVYkP7sam1EIayCNMsiVo7ozFa5zBo9W+Maz+jPbaLIMVNcxqkApD7j2Yo3B8FS7xzcRr9LTMfzsE66mGh6/d1qqRZuhi82qleUrQLSnfiNASGJHrHxvXtVY1JLbUEkmOvnT+nk9RRcpX5vjPkDhzbVcQjUkR7YN1ibqaNhEI73bCTGsxDUqIjHPHOMcq9/dkN7+bmlN6Q9yUrktvGZendD7KCwbFSaNjoDxwmgdQANa1rWiCTvp51PW/tG5B9Nk+38hQ8IN1Wr2oQB+Nq0FhVDAHiFO/OiP0Fl0/wDp1/XVNmgDF4v4FhRGOa182dy8JWK1rka0vsQKdxe6sTzcJovh7nM9x7URXbVvT/v1WPvWao8gcvrK7AqoK6I+mJ4jezvZJGhr4HXP6oemDKxSLKs2tCIY+VTsgg/e1ognZOidfj41rp0/EX9Nj6gGia3kLkjgTFxZDvGSPP1up2tmADvBjmxGFr6auYVg0e5pX2Hi8z2KoWtF+5Xh9Nu6pn5W89VrKVGxCs87lh881CwoxIA03Pf4GtkdNLI+qnZ6oEx+ByNojl5stVrp5/TtgbEh0dHynj8Nrx0/vhj+mh9HORlAsebOQuWOczjKhDUgpcHi7HTv7in8J9flHy9QZrCL4hfE2Fa5o/IZGOa7wR6470/x9V45Lty5kHj2yAkV4uTBeXJYy0hHjXBpOH7rvphZH1Oy9tXioUaGLjZeLFFexL43xZGlIhB8nbCEtvWjx2Op5OFeBOGvTliIHG/BvG2R4uxFariR89j6eLVRCyX9/esLAomrLtrWSq+Uu1tJEywlO7uPJeqqqvitVr04lhrRJDEu9Ig4jZ+SQPkn5JPnqPrVuzdmaxbnlsTv+qWVizHXwPPgAfhVAUfgDpXOujrn66yq9rHKNEV/b4Rfx3/jv8/Cd/yvz2TuvZe3boPwf38a/udjwfB0CN+dePnrB8ed6Gxvxvxsb0NjyB5+deOmWxvVHvK819B1HB24bYNs7aJlX5vPaazppEaIR1dXP0VqSnYSsWbcNVx5MSDLBGz/AGvRskDVsd7XXP2kMyT4m4ZA0i1zBDNJEeJ9se+wi5RAzkKGCkGE+8AR46sBN6OduWosVaw/qX2x9L9LRlzyZXJYmDJQSTRfXXDiaMWSMd0QY0FYYJLUUsmb44WVopm91VX4l9QFFyrVZmbEz2vqJl+tlEPDsMveij0ttRe9Fu663tTV4IMA0W1hWNeAcog5BiRmNMGNJOkVihjczDkYoHWG1G04cFJK8oEMkP2zxyyGMIhSUPGuyS3HlscgvTJ749Mct2RksvStZXt/IQYv6WaOzSzGPaXJUMmqWMXex9H6mS1ags4+erbkkhUxRe8VR5okE7//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgAAAgICAwEBAAAAAAAAAAAAAAcGCAUJAwQKAgH/xAA8EAABBAIBAwMBBQUGBQUAAAABAgMEBQYRBwASIRMxQQgUFSJRYQkjMnGBFkKRobHBF1JicpJTgqLS8P/EABwBAAICAwEBAAAAAAAAAAAAAAADAgQBBQYHCP/EADsRAAIBAwMCAwYEBAYBBQAAAAECEQADIQQSMQVBIlFhBxNxgZGhBjLB8BRCsdEVIyRScuHxFzNDYpL/2gAMAwEAAhEDEQA/APfx0UUdFFfhIAJJAAGySdAD8yT4A6KKw03IKuCCXZAUR4CW/wARUr4SkkgKJ+O3u2fA2eg+ESxCj1Mfbn7UAE8CeOPWoDdcu43SoWuQ+y0lG+4vvJaA0PkuemBske5Gvn9KOq6n07RLu1Ors2lAk73S3AGD+dlOPKPjAzWx0fSOp68quk0V++WiNlt2589qkeg8zikhf/V9hdSv0m59Sp1aXC0FTO5C1N+CCW0ulKSsdoWopT3HXnwRy+p/H/4dsNsTVC+TuChN7AkA/mZbcATiR5EjjPY6P2ZfirVwToLtlDtJNwIrbW7hGcEkAgx6ZikrY/tA6eIiY60xXPoipdKm2BILiFISVAqU82yhSNJ33JOiDoKKigK5x/at0xN5XTXbm2YRQUIjjxXGUMDEhgTiuot+xbrD+7D6y1ZLRJcKwgxJ2pvMgmI7sQKwDf7RnHXPTDlrj8NxaU9zTkeTJWhZACgoRlOKSAsKRrt7ir2SRvRa9q3S2VTe092ySAWG3eQSMgbXMgHAJHwBqd32KdXRm93rLV1dzbCStowCdshwJJEZBgmfy8VwWH7R3Ho7bRj3eIlxahsSWbNklCVFLukFgKC0bCkgqAGu1fk76Vqfax0sA/w6tuDAH3iOFjd4vDE7oyuRiSQ0QJaf2LdXJY6m5CwxU2ntmMCCxIIImRAiZGTBFSit/aK4J9pai2lhjhceQ2tH2N6wKSlYGllwxVoHnwQfKSO3RPk3bHtU6EzIt4XJZdxNtHYSRInBiPykDM4wZmjf9jP4iCM+me1c2kjbce2haDBC+IEzgiBmcYpx0P1tcUXAQF2UJpSiAQicySN6/uuFDm//AGD49t+N5pvaB+GNTH+u9wT/ACXkYETwMAkER3nvx20Gq9l/4w0oz043gBk2mB7EjAnkAzMRT6xzmTAcnbQuvu437wbSFuI18a2QTonYI8aIPvsEDpdH1Xp2vUNpNZYvTwFuDdODG0wQYMiRntNchrui9W6YxTX9P1WmIjL2m2GfJwCpA7mRTMYkMSmw7HebfbV5C2lpWk7/AFSTr+R89bD95Ef1rWVzdFFHRRR0UUdFFKjOst+6oNnKBdVGq1uNyEsJKloUhKf3jmgUoSXFBIccHpN+N+Vb6q9R1X+HaNtX7u5dVQdwtru2z4VJMHYu4wznCmJrYdK0R6nrrWiS5btPcYBTeYKrckheSxCgttEEj8pkVr65I51vVqWmO+qljq2W+1ffMlJPcB2kB18rQoJO0MNo2dhSiFBPjXXfxX1G+YGpPT7IBK27TH3rjABe7Bc7SCYUKpIxPb6B/DP4A6PYCPcsnql8BA73UP8AD2WBliLci3tbzuFj3iDFU9vsqt7dTqi1f2xdcdcDklx1poFZ2o+s+pw9gG9A77h7J/F2jzDV68M7Ntv6h2kl7zM8sSZJZtxyO09yY716/o+n29KiKg0mkRQFC2rSgjkABUxwO2DHzqIphiSlInxqmEwpfeluVMlSlkJ7gVuBDrae7aj3J9MpB2e3wkdVU110591prCkRLZEQS3cE+oAIAGec27ltVnx3r3MG2qpzgAEKYnsSYMAwa7UWrxNpRdXc0DDwILn2elQ+U6CgnsdkOrSpSQf4tfhJ0kgeOrtrU2gPFqdJBK+FbC7QO0sckGSDHGeBVS4NQYVNNq4zHvLwB7R4V2+sCATOJmuwMf44cas0f2ggLk2cZwWDjcCPElJD0NEZ41smG+2/WLUy2hTQrVRAw93vNem8txatimq0qsDb1mmFyOHsp4BGNpURIBEGfhwSaLDqA3D/AA3UMisIZL9wlhundcVpUgk5VgcQCDFcsnAMBLcRbzFdZMCJAjMLeiQZ4LUNlbbHrLcfXIekKaWoPOvuOuvKIcdK3u5apudOQrPd0rg8N7uy0SQcgXBkziRJMzOZVb1OrLMq2NTauDcGBe6uZ8QEptxEfmAwBgYr4kcd8aPRwpOHY7Jd7QUFqucr1urQNoQuRCmdyAo9qS6lCy2R3BBUO02LdvRP4bml0LLOGtoUYbu52MM9/T4CaQ+p6hbkrf1VtgSdrkMogCfz2okCJ5zHaojN4vwxKfViBVK6oodjtQrKe4lLSmx6jEtM9D6UvJf7098eSW1NhG9EqT0m/pOkk7BbNuBzb3kFiTBhgSBBncDOBIGasafqHUSpLEXI7OqBhgH/AOMwR8VnByZiuzj9Dl+OTDJx7KJIbaPqNRVvuDvUHEemoqO2whKFKKgShxa0pSgjuVrGn6fcVxc0GtKFDO3cy+KRGAy4B2kHMHEQTDtRrtHqE9z1DRo6MpDMbaNIIggAgtLHHJHfOK2k/Shn3JN08ujv4U55MFCXPvcNL+wLiBP4S+6U+mFuLBS2gKKlkL7U/h2n2H8C9V6zqnv9P6lZvXbdhFa1rHBZAgBhTdIEliRCjPptkj549p/QegdPNjqfR79iw2pYrd0CkB2eRJS2DK7VBL+EKJmTWxJBKkIUoaKkpJA9gSASP6Hr0WvIq+uiijooo6KKTvKtf921q8ornVxpiHmI09koS/CnxnQpvcuKv8K3EaQ2HAQVoIQ4lYCO2xZO+bLILiMrShAO6YlfFI24lhGY5qJ8LK6sbbhgVdTtYNyIIzMgEQQZEgzzSq6o+OchnLsbbEEN2KwoPzcZtfu9Tqikp73aWeFwFrTsLSGENDu1s/nzPU/wN+G+o3Wv3tLc0l4jaz6Z2t285lrTC5YBB7hVBMEzwO46V7RPxV0mwuls69dXplIi1rba3WVRHhXUJt1AkYJa4xjtSvteI+O5y+93N8uqEkkJavcWddbQDsFJlU7ymeweAOyKkEfn1xOs9kWkvtus9bvBTkC7ZttA7Am2VHlnYPgDmu60Xtq1tkAajoOldgQS+n1TAkg9lvI7ATEy5nJkTiHOfTriM5YMfk/DZKUFRSifOnVDhBBKQpubB/PXcCdb8kgbPXP3PY3qdwC6/T3hkqC1xAYmAQyEZaPQAYOMdJZ9uXTyB7zpmussRBZUS6AYnlbhbBH+0fTJ6jf0x1Dqu1OS4JLQNhXp5fAIPnfht55oDR3/AA9o7dD5PSk9kevtsxa1pnBBURqExiCYJA9ZAzMedXP/AFr6Oy86tSQIB0lyBx3EsfKCSJGCBiu/G+lmElHiywx1sexGR0CVe40QtqSVlXjQJWNAjZTojq9a9mWvtxGl08D/AHXbGeByCSQc5MwOABSX9s/SG4v6lSOW9xqDxP8AKwAPafXHpXbX9LUV5Hpx7rFoZJCypGZR3gFJ2AlTSPtCVI1vaANb2dq109/Zlrbi40miB/8AtftwCTMkQeM8A5n5JHtk6VbJLXtbdBHA0bBmIPmWUA/QcDvB70D6WZLiwmXlHHy2djt9Fdy7JKQkEbdrWWCFoPjvRsK8lXv4wnsu1TSHfplpThiG1AYgHgNaA4z6zwKTf9tPR4mzpOsXLgAKgjS7JGSdl123DmAxIJ9OWJVfSJQrQUy87nMJdAC0Uda/IC068oL928VKHZ4SVRydjuO/nY2PZfYtD/M6vftSAHTSq1xWERBOpZsRiYJHyJrQ6z2z3bp/03QrTkGVbW3UQjvKrpUHM+IF4PHGaeGEfTHxNjD7ElUC8yeWyoKbVkdmlyF3JAAKqyCzEjrSfdTb6n2idbQNaHTdK/A3QOmOlwW9VrXTIOruh0mIk2baonrDbwe48+M6x7SvxN1a29lX0fTrTqV26GxF4IWmBqbz3LixgBlCsAMGeLb4/AiRWY8GHEjV8KMwlLcOCyhhhttntbaaSlsJSltKfwgJSNAdoOiR12W1LSKtpFtooCKqKFVFAIAUAACBIECY+FcCzveuvdvXLl69cZnuXbrM7MxILNuYnLNBMQDzA7zDpdZo6KKOiijooqD8jxBMwu+aKe4oipfSANnbDzTh8ePdKVedjXz46dp223kPqR9QRUWG4fMH/wAcfftNay8nYejvuqQpSfKjob8a3vyPGxrx7718e3XQC2lxYYAkhYwCDAnM4PoTSpySMfDH79fWlTY5HdVhKmJUkAHwlLriRrt9yO7xvfsAfnRG+q76K2xiIbkZBjHnyPqO2OKYt1hAOQPSTxHesKrlG9QS0+tL43+ISWGXQPHkkOIPj2HgHX6+xqt01f5blwyZMvI9IBntH0pnvwZ3IpHmAoPkMYn6/EHmudrkkvLBeqah0/3lOVMEq13D2IYBJPjz+Z9vO+oHp7ji40AcEjt8AOe/BoN62f5IHmAQfifHBjyipZBzdhwJ1UUqQop/CKuIk+/jYDYB1reiNDegOoHSOASbjY8iIPwEE/Xzo32yMGO4nd8I5jOJOOB2mmLT5UVFARCgNnaQSxDit6BJ8g+knuKUnfbsE+BrZ6h/DN3uN5nIH9BP/g9uYsywJAzkYJ+kmAc9/pTbprmS6Efi7QAgaShKdjW9AADyPH5f5dRGnUGWLE/8yRnv+/iOZpZfyA8ge4/ef3y3qZ9x1KCoqPj3Pz8fmdHx5B0dkkD5AbIEECSRwYj1PPY/1x3JjvJn0IEjBPmO3E/OeaY9cSVjwdAe3zvx7gE68Dxv9esRBiAPp+lSJ8Iz4gecz37/AEph0aSQ6v4CEJ/qVKV/t5/n1G6RCAepPxMfX0rKZknnGfrUh6TTKOiijooo6KKxN9HEuktoxHd61dMQARvajHc7fH/drqSNtdD5Mv8AUD9/rxWG4P1+ma1mZbE/fPaSUqSVJ34I0QSfw93n28nYIKSfYeejtt+XuAAfUgR94+/lVeYAJ8hMZ+nn6UjruEFBWx4AUfGgddpGwCdEaJHnz5Oh+Tt3oJnmO3bv+/ORWfhx2paTKwJUVfh7tlST+Eb3oeffxrXaAPH8tdQJBPYdo4+3r96K4WqzsAdWntbClD11gpZHjfl5Wmxr30VJ+CfcnqLkgYGDM+lBIAk4GfmfIetcsfKMJhSEsTM0w2E+koT6MzLMciv92z4DD9m06FHWynRPwOqxe2MF0mYgssz5ETj5xjPrSzetCd122schnRSPkWn44jjPMPbEHYNoltyqmwrdtQHYurmRbJogAqKg5BdfST58dqiNbPnqBCFWZSPM5ECT3A/vTA6thXVvIBg0/wDGCRgczEZ8pp80TPZ2JPhQ7SRrt/XRGwR260R7j41vpDxPy/v9PhRTpok6QgkeT8ADx8E+NeST4/PR+OoHkegI+pBH7x+tYEHI74+k/wB/7Uy64fi3+g3r/AH59/n/AA348oJJMnvWaZVKjsjuH83Anf8A2pH/ANj/AK68+VXOR/x+8n9IpiT4ie5EfACPM/PtP0GZ6XTKOiijooo6KK+VpC0KQr+FaSg/yUO0/wCvRxRWt7Oof2ewns67SzJkNnfwEOrQAdge3x58/wAvPXQWmB2ntgfYfrFVwIHx5Pmf07YpEWzJJVoKKlfhCUjZUSNAJA91K8JAHuSNDZ11YxiJ7DOTPp+/jRXmr+vv9o3mtLnM3CuJrafhqsDybNKNi3xTKbBz+3hrr+Njsm5t5UWDErIdFXGnumaGBBl3U2TcSHpUiTDiROx/mOpdXe3cNrTuUNtmVnQ5uMIUyQohVIbAZiW8gM8h1frtyy5t6dijWmdZtsxLgOFLkgAbV2khRuySZiZ13w8s+p36kcby3k7K+R4NLxrhVnUUGU8hcn5LlGRVNfd3zEmXS49W1EhvL7O6vp0aJKlwoGNYiy61GaK5cxlgIPWpN7V6sM7XSLVqN9y65KqzklRAklmglVCM0CZA50S6jqOttXdQ15LentMtt7t4udr3ASFVQHYuVBICpzicZkvEmH8D5dl2N4TlP1Kc+WmSZTaR6egTgnAGE4xjEuwkr7G205Bytl1GuNGZIPqSptdXx0p0pfpKKWlwtiy7hG1V8tcbb/l6ZVBacEtddCROJIHngGCmymjv3ls3+pa4vdZbaC1pLNq34uFDahwRPG4gDjgGrbZ59Dn1H8OcmljjrlzDmMStsJyHN+LMk5PynC8YzDkeVhNDIyHL8Fxl/jGVYuOZPTQIT9glcTIKKI9U+lOlToKQ62l93RamxdAtX5RkZrbXHS2XZFLPbHuyfGACVBfIzIjFnV9J6jpNR/pdanuTauXbD6l7aXb5tKWu2kNkHxoFJLB1xmQKx30z/tP/AKh8az3B5Ob8h5ZkGOVVxRSWsfucwzOzxq5SqW3BepMkalW9lOj0M6smyUtzG0W7lLaR622VAsGIrzKqlnqmoFxPeXCygjBLMrAkYbJYAiRIJ2naxBEitZofxPr7d+2b193tq4i2z3CjCfELhljBUkDbIBAO0jFezL6cOU4PN3EHH/KUGLHrhmFImbYUsawTaHHbyJLlVt/jUuaWIri7GhtYUqvsUPxIkluUypD0VlX4euntXRdt23UQGUmJkiGIgmBwQRwDgYFepaLVLrdLa1KgD3iklQSdjKxVlJIBlSIyB2q0db5I2Ade3kfl4H9fJ/Q/y6gf7fcVbAkgeZpnVSdQ0n/mW4r/AORT+v8Ay9Kcy3wAFOUQI9cf94FZHqFZo6KKOiijooo//f4dFFUJ5bh/ZsovGwNJM6QtA3o6eUXU7OgPKVj29wet3pTNu3J4UScAd4+4g1XaRuwTtMQOTgEfWftNa9vq9m3tL9NHPVzjVv8AcN5A4sy+RXXSJIhOVihWLbly4ktbjaY05qC5LNe/6iFImmOUOIc7FB2pZl0990bayWbjK07dpCNkNwD5esVW1jbdLqCphhZYgyJGBJAxkLugiYaCJjPhN5Dkz5WXZEmajt+77SfTw4jX4otbW00uRXV9XCA0luJXxo6GGgB3OK9SS+XJciS6559dJLsSCfGY+AwCCOZiZjmZzM+WXnLXrhYywZxAMlQpICgj/aIX1ifOrTfR9zDiPB8+2s+U8Kz+7wHJZNVJem4lmvIWCRbBip+8IFpj9hPxG9pq11UtNg1ZU061DphXtNFr5amaO8sZUS1pL6WCzXFfaxBJVmT8sgqSkHKtIJnaRkhWNXem6mzo2d79i69m4VZmtvdtzsBlGKsEyG8JPDAA4JNYnkzh+v5W5DvM24c5DrMr4tynJLCfSWXKWQv4daYHSy5bkpmjzU5lYTXpT2OpcTWMqxedlk67YjsSIEF+TI9EpvWReuPcsMHtO5IN1irWwThHLkghSSPAzkx4QcmqOr0a6u9cvaPULd0z3NyPebY1gElit0XGJ225AXZuLDhBkVZP6lswyKNxFwPwths+4wHg3hHBL3GYef5xCscLyrnvLs5lMWnImRYTx9ZMM545gc2QyzT0SJVdV1UikaL+SWED7xdrkS1bONPZsJNuxZVv8xjsa9cfLm2mbmzJCiFDA7icxTur3nGk0WksFrOj0llrYu3ptXNVcuHdde1Z/wDeNrd4VOxVK/nMEiqF0TW1Dt9RSFJ3paApwpJIR3gdwSVIO1hBKQRoLIAKtRxHA7cgD947fTy5EsQfAsn/AGmRnzjMcD5cCvY1+wnvMnu+LOWDcXAnw1S+ObVFcZhlSkXEuDmdQ/kMhkqW41Mv6DGcfiXMlwJcsbChRJkepME2Q/0/RmZrV0lpACGDJII94paOxKoswM7QTkV6j+Crlx9JqQ7hhNhuc7ouIGM8b0VQzEksbe5iScegms9/HuQN++z42Bvxofl7EHz4Htsq7VeR8aakBPbDjj82kq/8/wAX+/SDyfif60+u31iijooo6KKOiijooqmPOcP0somLAIEiPFf35APcyEKI/UFsjY37ewPW20hmyPQkfckD0ifvSG/M2O4+fhGR/Qz5Y71og/acYjndxV8HjEeU8z4+x/kHlKs4E5MrKByPZUWQ41ygxLbopNvilq1JqLdddktexCeT6TMqVV2z7H2pv7MwRHqK3Daslbty0Ddt2bir4le3fIQFkPhMNGDnaxzxWl6oty4LAt3Wtq90WLgWCGFydpgwG8UAD18yK0OVf07VeYzq5dNl/CGYP3WfZZg9g9Y8O0TMmDmFFwinmqfSTLKny2nlX9+5YovsFsEUocjMXtTJtW3noDi48XnxpkZlC3LLE3RZYm0GK3Daa6UO11lgysjbMSCxOCtc0dALjAi5pX3XLtss1geG6lg3ihKuhZiR7tgswxMcFRD8UwO1lZ7xvg2FYfwy/lfL/G/D3I2I+lG5dwqDIa5it67HKituZ1Ry0hiK7jsiSpdvNEecxJ9N2LVRnnjHYcrhCrWlW3ZL6izaupIvIIu3DbCsRdK+EzLGRjaCSRKEsn3tnTpZ0xuaixp7qQupt2yL7AECL8BrYy5h9zeBOKxdL9RL9fm1PgeEVeGtybnMzik22qJHPGHqgWf301josy5E5LYuJ8aWZL1g223Ph2EdhpDUuKxIcT3w/iClwqotE7tjFffqGO8qCP8ANkicjAbzAmTWTWf6hNPaWyGe97qFTUWxu37Nzf528iSTO5SB2PdiW+IVabXmDJ85484WtqzjPnfHvp7yDNpsPn7PMgyPkLIbG9jBcGryDmpM2TU1kSgsbZ1+2mtS5TKIlTWw5VxLLDEbijffa7bsXBYvLYe7GodmdnKwFN7dEKZ3MMgDnFV71m2x1Vy9Z0zJp9Xb0LXQmrus15yVEBtQG2LtLAsSW8KhSSSLAN/TFPjQ+QYFSx9Lis34m5Fu+PeR8XpeJ4EsY/GfzeTxfx1yPW5DnmWWwtuOsp5FZZxjKpyYMe848esa2TYVtk3KKmotpYN0D+HD2iVdUQEgFilt1LsZtM4CsT+QkTNLfpZVL6IdALunvvbuqmmEqrXPcWdQty7cYPaa6NlwxutMRKkk1sC+gPjfmSj+sDBOLk8iZnQ8S1lrzLdZXT40vE+Ocf5Qe+nLIVYa2V4RhkWvyqixJ7ka7s40evzKdNF3S9sqFIfjWdrDiWNGl1dVbtC4UtL7xnCBUW57glCdiANs94cBiTEHvnadE02st9W09n+IuJpVOqe5atm3Yt6g6NzbH+VbAuC2brMFFwHcsGfERXqxrd+TsqV7+fbegfAA8b3vQ8fl8Drd+Z8smvRxyPiP602Wk9jTSP8AlbQn/wAUgf7dV6fXJ0UUdFFHRRR0UUdFFVb5/iAT62Vofvq8tk/qw+5vfwQQ6B+ft8DrY6H8riSfFMHMSBx9D8PnSnwSY8oOe3l68eXHzOuTnDhrjXnDGWcO5SxpvKceh3UDI4kFdjc064d9UpkfdlrFnUNjV2EebA+0vqjOokgNOLKwkuISpN9rKX0Nu8m9DtYAkiCplWBBBBXlY4+lVb2ns6hQl1NyAhtslfEJhgRBBEmD25rTf9VP7Pf+wtTQ5F9HuHZai5YvLq5yDHYfKfI6ERrxUBtuszWpZZ5BoJ7t3JiLtsZsnIT06yXCs2JLbS22ZbEnVazpwtqr6VCG37iou3Fl9rbXHjBLySDncQcHmtHr+jhEVunWnV9zM6JevDxwAHA94CSRuRiDuAIJmJGlq8qM5xe+iYFybgNngz+HRkO1r13y5yxjLOPCtuBd1dbG+10tvk2OsC9feu6AyWIuOtXCHZ1dMbmLakOaBw9s7LtprZTgNeuoFM7ozLKCTuBiAykqSRNcrdW9bb3WostaFsqyM2p1FoWijblAkMyksdykKEBJzurBWmXUJybHLy5hY7Y3UXLGbKsyCs+qd2cavJbuW/Nk5VLXB4zDrc1U2kYm3d/YNP2BeTVPy3H1vxR1XuOm9WYgsHWGGqJhmIIJhOScs0SDBIPNU795RctMQnvfeArcXqE7GYbg/htTvG0biwjdEmeXG9nNzPZn5JQ2rGbX1xPp37Kto/qV5IsrCfMmXsvIvvq8XExDFaGLY0GRTHryZb3FnFuGruyW9UyZFi5I7JNdLQVm4zsCY1F1nJLFiW8KiQ0k7s7pIO7NYuXnILWovXLlxCVXW3mJZiX3uQiqGUkMHaWDHdE5rZf9G/7PjlPmHLsRsOcOD5eL8N2LCIV3ZS835dYtZOHqmSconUkNvMs8iSbeBkmQRoDbqY+HvQYs2bJyZuXKmRY0hb9PoHvXFa/aC2oCnx3i5UkuwG+5/OQBtC7c75kZ2vS+hajV3rd3WaNrWlKBWY3tRu93u94yKbtwF1d4EG2QZNwEMqmvSRwb9G/028H5U3nnGfGELH83FLLx45dMyPM8kyBVHYqZdm1RnZNklsFQpDjDS1tehsONpcSpCytZ3VvS6a1cLW02uFZJ3MSFPIlixIkDBJGBHnXaaXpXT9Hd99pdMEuFShuG5duOLZAlQ1x2wSFGR681eGobK3W06/jcbSNDXguJHx+Y37fH9NjcH4H+lbJRkfIn7Ej1j7801ukU+jooo6KKOiijooo6KKr/AM+RAupqZetlDsthR0PAUhpxPn+aFf7e/V3REb3BPYEDPOR9IPfy9KVc5XyyD8I5juQYj51Q+6SAtQB8knxob/h/w9/B8j+fk626d/l96hSM5HtsgpMSvrPF61u3vIcdtyFCdjSpyAlcyKzNlmtrltWNsaytcl2qaavean3C4KayG63JlIILs7GKjcwyq+ZHyzAkxgkiAQTNRcsFJQAtiJkjkSSFyYEmBk8eoony5yRiXJDtbjee/TdI5JpKKU6ze5DfU1hXWdNVGSxGft8Nbits5JW2k6A1YXpxGHcieiqfo25Up16yd+za2+y3BtuacXArQWcEADMskBmyoLQCIlJJmRRvvavAC7pBeRWyzKwZAAZdcB5IE7A0AwCTMUmcf4F+gbOm8rnUXEvLzdrjPHFlyOuhdyfKqmLKiV8cyBR10pVla+rMfWY7bcqKJNb2OPqEtciBMitUP4XQPuK6e6rBWcqzMAAAWA/M0nwkbh4ZPOIrXf4b0i6LjLpbpZLYulSXX/aQoknJYgTJgEkTBi0fB+I/T5x5hmD8xcVfTvS2cxi7zasyp+e5l3I2a4/aYHTWM2w/4ezrlUmrlTVy4D1NFydmJTwpStz65+bASwuTO2li3bR7NgSGcN+a4ylVZ32bpBJZYXCiZhmxLbGm0VhUvWNHbYzdDzvd7bW1lvc78Fi/hDgAGAZ89mfCvKd9yVKmuWXGWWYLXtU1PaQZ+T+v6tjJsUoVIgJUqpi1z6m2XBNjS6u2uUuxAo2TVNMLUNywjsxIKMggGW5nEnI7iCpXMDIzW1sX2vZNp0TYrAvIbceVM4MzIImM7iCQGuNTp/Cg/ICdj38lJ/X2B9z58HwR53gGXb0kA+gMCfWI/tTgZAPmKZ2PoC5UYHR06FfqO38evf2Gv6j/AA6Q/BjH69qYmDHmP+/hTL6TTaOiijooo6KKOiijoopQ81xvXwxboG1Rp8dY8b8OIeZP+ax/XXv1a0Zi73yp485FQcCATyDj5+fymtdt/wCFOA6B873rRB8D4O/5a9/O99bpO/y/WlUsrBxKSrav72knW/Pzvx+h1r39vHt1l+B8f0NFYlMhRUAXFlIJCNuHSD7gAElKRs9w1rRJ9iSekme2Mifh3+BjvRJ86kFapAcQUIQD2pb7glKSGkKKktjtGw2hRUtDWw2hSiUpClKUVOADPnzx3x9/36ZAmT/tHf5nH75pqY+6lHYlj9ylHYEhkJaQgpAKOxKO0DtKU9oAGgBrXjqBE4PHesU4KJZUttXcSTslRXtRUfc7PnfjZ8nfz7+Un157/GiT505qc+EDwDob+fdPt4B6SQWY8Y8/L9/visD8q+qg8RTWxZO5aP8ApQ6r8/gp/p5UP9OlP+U57j6kzH247+oqafmph9Jp1HRRR0UUdFFHRRR0UVAeT432nBr5PjbUdqQnfx6MhlSjv40jv8/Hx56fpzF5OckgxycExj1AqLCQfTNazMj/AI3BvylRBHwQf0PsR48/HuPfreW+GnyAPbzk/wDjik0qrIbKwSCdEH38A+48/qBv28/Pt1l588Hj6c8UVgUkpX26I1sb3sefB2QNbG/GtnY0el0VJKxw96QVHXj+8SP11+ZBHj8vI8e/UHErIBJHHP8AaftWREiRI7j9/v1ppULh7knXgga3sEq2AfHt4+d+2/02EsY88HI+v60HnggHifKnVRE7bPsCR7/nrwfYjWvYJ1vR+fdHf+/61inVSnaEk/IHv5IPYAN+PBOhrXt52dEdLKyxzGJHoJiPl5/rWBwJ7ACm/iKduvKIH4WPB+QVugf6I/z389IuflH/AC4+HHrg/p60xOTzx8uf396nfSqbR0UUdFFHRRR0UUdFFR/K432vGb+N/wCrUWAA/NSYziwB+pKQOp2ztuIZiGXPpOftWDwZ4gz+8/0rT/y7MzOHQWEnj+up7fJ4z8V+LU30pyBXWUYPpFhFVObUkxJRiKW9CdUfSVLYajPltmS5IZ3oDm0+2N5gAHjBEiRkSJgjIJxVdi0SoBPkTHyn9iqgz+cc1pZ0aDnvC2X0v2i4RRKvMefj5DjodWv0hcvvpDT1djbhdhkWkxZ9BMsfaUoEOeuOo3LymLlq4fGFBUqymeG5BA9MkEkHtSzd2kB7biTAIG4Se5I4XvPJHYc1EKn6suNLO3MNyPf1tZ+5joyCXCjPVYspNrNrWIEmRWzrGPDL7cFc1L8mQkRGfUZuWKmQz6bkP4hNxEOBgbisrO7bllJAzIJk7YyIk1gX7ZkyQIkMR4TnjcME9/ICSSIqbV/1S8RetXLTb2T1VZQ7WRDu26aeqDJkUiqxdjDjNBszJLkKHYOT50hpj7JDjVlgFurdQy28HUIQNpwzMoaDAK7ScGDgNJwIgxODUv4iyu1iSQd3KmDtiRjymWIkQD3wW3in1ScOT5MONGv7MqltvSEvP45bw2ERW8fnZPElLMxll1Ua6pYEiXRrjNPqsj6DSENvS4yHUG/bJ2+LPcgqON0yeQQCVIDEwZAnIdVYYABiCCexMAKSOw5AkeYjg02qX6jxaOKh4Jxjm2ZzmGI7znpO1EOuZRIZjPIS/ZQZN9HL60zoTkNhlTgs4jkqdBfdjV0shJvbspbLTHdQvAn8pY5kFSOROQQaSdUCYt2brmJxED4nP0gEzgYNW448ueRrjI5r11jlZjeERmJseqbkOrfye3kGQwqvtpLfrhNVEMIOodrHYiZbct5xD7pTFaU/gl53GFwQBILEdm9Ac+RFPVrhY7kCoBgE7mYzySICggkbYnAk1bXDk7bmuf8AUygHz7acUf8AUf7/AB0i5yPh95/sKsrGcR8/7/Gpr1CpUdFFHRRR0UUdFFHRRXDIZTIYfYUAUvMutKB/JxCkH/JRHQMEHyorUVnKJFbZ2MKS2tiTCmSIr7KxpbbjDim3ElCiCCCARseQQoeD3Hf6e4rWwd0znk/9mQcGfKlMhnAx8qRVvYeksjuUlZUSCO4edeN+3n3G0+fz6sTIkZ+2R2/f9KjlcjE4nGY/Z/ZqBLj0pY+wmqq1wOx5tUNyuhLh+m+t1UhsxFsKYU1IW88p9C21IeLzpdSouL2g+RAE/wAvx7RJ8885J86NpK8Db5YjE5jz+WaydbR4etXnGcZPqqiqWFY/Udq1wlRxCKwqH2qMURYv2UnzHEWOGuwMMpRAohnwrJ77RMjjt6Co7VmdonB4Hbjt2jHlTdpMYxB+5pb9zHKRdzSNyo9JYKro/r1aJraGZRhJCAzHdfYabjqkpa+0pjJEZt9DH7vpJVZyoJXhiBIOQYxj1jzpnu0Yo+xZCkFoyJxg/afIkd82fx138DbadpQgJCUDYQkAaAShPhKfJ2lKQAT49+kkyfhjH7+npUWG0EAcA7RjPkMcfOnxj+ihse38JTv/ALd6Hyf5/r0m6QCD3IIAjmPh5zQFIyZImT5+ojmB6/an7iLRRWuOkaD8lakEj+JCEob7h5O096VgH50fA9zUncSZntjjBIMdvp9TT4jtHB+2PtUp6KKOiijooo6KKOiijooo6KKTPJfBmE8mFyXZMyqm9U2EJvadxDEtfpoKGUzo7rbsOxbbGkgSWfXSgBDchtKU9rEuvbwpwexyP7g+oINFUfzr6KeTGFuv4lkeM5NGSSWotmZWO2a/yClenZVqlaH4nBKjgnWmwASLi60QFZWWIypBHrIMYOMZiJnAFAC/zDA4A/Xj1/rVc7j6ZfqGq3VJe4ut5qAVAv01nj1m2rRT/CI1sZCk6HjujJ3oADZ0JfxNo+JjnGCpPHwEfcYqYCcY2nHec/Pj1x/fp13CfNzTqW18SZ2nt0SpdOoIJ3504Xig+xJPdrz8aHWTqlxtcf8A5I7YGRxz8/lQEtjIMT5EevbJH609sX4U5jdUwV8e3UTQSCZ71VDSgn37hJsWl9o9tBBOvPkgdIa+p4Yz2IU4nntI4jvI75is7bfn35k8/PGZ8o79sWXxbhHkBIa+8GqeoACSv7TYfbHUjQ9moLLqSr/pU+kH2Kh/F0hrrFjkkHmePh2PHmPPmlwJzkegj4c+X9fKrA4/xpFrQhVrYPWa0pG2GmkQ4W9fiCglTkp0E+dKfQn3CkH5Sd7fncsBwvCiRkwMye+Y7wJipAgABVAIMhiSxxMYPhxPlOBnAhnIQhpCW20JbbQkJQhACUpSkaCUpGgAB4AA0OgAAADAHA8vSsEkmTkmvl1S0trLaUqcCVemlalIQV6PYFrShxSUFWgtSULUlO1BCiAk5Mx4YntPE9p9J5oXbuXcWCyNxRQ7hZ8RRSyBmidqllDGBImapXF+oXnCrpL03/0+5dcZFHk3iqdVBR3sKiXDafYbx0TUuRru1WZcaXFm2T8VCpLDapjaatmRAlMM8uOs9Vt273vOjam7eDXvcm1aupa2qyiyHG2853BgzsgkDcDbVkYV9DXvZX7N9Z1Hp3+Ge1XoXT+k3LXSl6gvVOodM1XU1v3bN251htO6X+m9PX+Gvae/ptJbuv7i6/8ACuddes6q1ddycUc4ROU6vGrGNhWc0rWRxL+SiZY47PRSQDQ286pMefcOsxmWJFmYDs2sShl2NIjLbaEz7XtnrZdO6qvULdi4mm1Vtb63mDvZYWl9zduWtrXSFG65s32woYFCJbcYHn/439nN/wDBWt6vo7/4i/DfULnSL3TLL6bS9W0p6lqP8T0Gl1wuafp9u7euPb0P8Uul1u65bvWr6Ow0/uFNyv/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAEEAwEBAQAAAAAAAAAAAAcBBgkKBQgLAgQD/8QANxAAAQQBAwIFAgQEBQUAAAAAAwECBAUGAAcRCBIJExQhMSJBChUWUTJhccEkM0KBkRcjgqGx/8QAHAEBAAEFAQEAAAAAAAAAAAAAAAUBAwQGBwII/8QAOREAAgIBAwMDAgUDAwMDBQAAAQIDEQAEEiEFMUEGEyJRYQcUcYHwIzKRUqGxFULRFyTxM2JykuH/2gAMAwEAAhEDEQA/AN/jTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGNMY0xjTGU5TjnlOE+V59tULAAHwTVjn6/+MZw0vI6GCpEl3NVG8r/M8+xhiVi88cPa8yOavPCcORFVV4TlfbXoK7EBUdiR8QFJ3EiwBx3of4OO1k8ADcSeAF/1HvQPg9u3bIUzfqf2iwG3rKW7vpMiVZxizWvo6qddxoUQTnM8+xPCY5IrTOY9sYaMKeR5b1GJ3brX+tepej+nnhTrGrGiadiqCSOQgdqMhVDtF/p98m+j+nesdeSaTpWjbVJABuYSwoCTdBA7qWuu9V+3JjyN1/dIsq2taJu92LAuaJIi3dVNh5PCn1DZ8R0+GSxjycfH6YEiIIxhSXv9M9oTohu4BWtsD1h6cMQlHVtKqsnuAy+9GpSrLBjHyvK8i6sDvmWfRvqncVHRdUwWRonZfaapVq41CyHc3NkD9j3GSLgnVRsBubk8jDsE3SxfI8ni1hrk1LENNjzG1UeQGIeexLCBDGeMGRICMjwFIrVe13b2L3JIdP630zqTtFpNZDNKsaysi71JjatrrvVbVr4I7/qQMjNd0XqvTUWXXaKXTwl2iMjmNqlVdxQhGO1vG01Vgk1k8hmR5DVeEwit+eRFGROP/By/3/skoWquGskigDdg0bHcV5vxkWDYvxQN3dX4P0Pj/wDufpRUX7p/ymvWVyumMaYxpjGmMaYxpjGmMhzdXc1cHFFr6+Gs23shq8SK3uHFCpHBacjVc1j+XtJwj3oxiDVzkf3NYt+CESgu7bUCmlJA3MLNWRXNUPPHYXeFWSRikQUsCL3EgUR9R2JPAJ4vMJfUR4l13iHUJinTNjuE2+424+dX8XFaQy53V0uLQbczI755ciqq6HLt6qmpnFaSdOLHWSWKKTJgBKwC9+t9P9TwdQ63qehaLQP7+nkZBqJP/oSbEaR3jYjnYqMGQkjmzdZuD+kp9P0JPUOs1MUWkVVk1GmQLJqYkZxEhUA229nUobAPI7AXiH8SDre6qdp98MA222/ze7TcbBqSq3PzOh25qZETa0ljKtGThbdWYrsEiz3Go0wkoXXcqbIhzJ2RXdYCLHqVhFjnhPXvqiT07qum7NWI9xbasbqpneZSUSOKvkVXa4O7seADV9B/Cn0QfWcPVpBoUl0WnMcUjykrqHgVWYqPj7UczuvxhsA0StncM7LWPinQsj2WxPfLAdsKrKsj3LxeqoSYHPnvFa7f7g4sO1h5W8sEkRsyxqaj1qOZEjS4drPBLpztIinkMBxPWdb03UtFq9T6t1sUKQdT1EGnm1STzDUxqqsuz8urNEhJ2MdoAAPPBJ6Pp/ROp6V1CDQ9A0uoI9j35IIVgSQI4IHvGQizGDT975YAA5076Xt6twU3I3c3ezaCLIM8z21qBwouVqysxOPiEQXpLiunQIQZkwsZIRlBDgUsOZHpAPlWFoRsXseSOk67F1PWIujQjpenjh00OomIbSe0tCWOJbEjrIFpi/yUEEWTmxT+l/8Ap2h0w12sGlnaXUapo9KRL1CSVgNgYDcmnWN6KyMaIBHLAZmD2Z3e2QuNy7zOsdr8cflkHbC6ygM/HC5DGlT2Tb2rxtsCPHmVYK6SFLcYALOhq5gQopXCDHKhXbTpepN0fS9b1U2q9yf/AKci6QqX3RQ+8uyOP6RqaHBLUT9znO+p9E/Pno0EGjkigk6s0GrMsMbL7zJIZNROCf8AuXhjyrUBwKIt/f3rv3N26zfH7agkzqPBasbobpM2KAuP5lanlLElsSzjve8L69GsBHiyEgER6TJYWy1YQgdr9EeqIOoxSwzdXkPV5p5W/KTckacRh70x5DOtH4MDZ885B+oPREOnbf8AkDFpFQxLqaVnOoDEIHQCvYYWyvweyg+c7w9PfiM41uUCvg2FxGx/JHjAxanISsSstCvG53lVV6ZwgulvViI2ulliT2jenpxzmNU67uvqNIJANTBLJpywVXRdmoiBFGSfTncERe97i1ckAHjn+q9GSlZTpJ42kjXcyOSsTUCT7crD5+AQOVPBsizk9wbO6/NIZCAY6NNisEsyGTh3ahefLMEiexAE4VEXlXscna9XJ2kJs0Usc8azwyCSGSthoAg1ZUjmj+589u2aXPBLpZXgnT25YyQy3usXQYG+x/QV2y/NXMs40xjTGNMY0xjTGQ3u3jNLYUkm6tmyUWvjjC+RDI1kkEUsnsQoUKMgnFjFP5jBlRBFa8jHq1VYQeHrNQsWh1ZneRIQpIMRHuq1Fd6WaAHJJJI7Ubu8zp/vfnIRAsbO25dkiFlkJ27VaueeQK7HkigSMEGQeH5OxTqnynrB2ozWjyvPsnpbquiRM6r/AFDcat7OOOrJcwcbWdjwLB8KoWfDDGNk4K5qzHnWHIcQai5/0/Warp8jP0LU9J6zNpi8enhnVtPr9OjAl5JVmMa6iRg20SKz7gGAJBrOqS6nSazR/wDTeuQda6PoJva/NfkjFqINZFAPdSITRjfp45ZVQtXy4oi7zE51f7bb97bbi4tuVkG0nUZvhutujmlLt9mmQwtmMdg4MHDp+RRVNk4Ye10rI/0hQ46KZ3AHYW9ncXEUbAzJEZYa2cbS/VXoPrPrbqmh1fXOqp02LpzxSwfkVA1fuGUN+Xg+TRBFDMrSt8auNAFQAdJ9Efid030F0bqfS+h9Jg1cPUlM6rJqJJUglWKRIpdQ0yoSyEIPajDESEvfzYNNu5fhA4Zd18Crqt+8mwWHJNbZKkauxXJR3ePX2ZXq39jPSPi2ZU2PyLKYL8vieuvEn8xq55IdZDcTygbev4d6Sef8imtGo0umO5FlSJ59RIy1cZP9Hmzu3EOCTyM1hfxp6zDGer6zpkb67VRIsjypvhMWnYrHBGNOQ0VGtwIUOBTWaqGLTwtcZw22kUsfrEyTc+7FBDe2saaYFTmGJJ5yRamXMgln2lnNxmQMc2QsHyIaFlCSRBMZwXxJWp+pvRfQ+gN7Us22aVQ/5NoZGbh1BKnTI8ak0FsNdWL5NznSPxK6p6hJ1sWi0kCOwj1EmlAVHpWO1V1VksGog/LaQtci8tWx2a346at/soqcb3ryfeHGYGz2GS4mF41Zybzd/G6mzzmsPdTxY/XRoxYdDZUOKTanGp5BV0S8iusMbhxFkRHydaxq+nez7MsOhHv6mCWEvBp5NSj6dpmaOGXTOdqsV21LW4EhiboZNRdSh1+ldpXYRx6tJ/8A3MsUJedY1ElTKwohrDCqYL3Hnu3jNxaby158Oqtg93cijdoi2tHd7Z2WLUE2GcJH+nLKzCJDr542ye10kNUw1hGlDeVUaHl7tUg9Neom1Qk6X0nq+nnWT3t8UY0iBlKp7ceokcWWoUwqwSO4rJpvUnRtLpnXqHVOmPGyiFVd2nHtsNwb2IgVGw/EGzwCTS2M+4fhv7nPyUE2py4ezW00x7ZdzhWUSTZTl1cBAsMdcYHWtUToCSnSQgo8xVBVMUIyVmSQwMHAL9A+i5OvaZZV9ZaTQpoxp3XTayWdF6uTwPYlhjLRyKFAAk3XVknk5x31Tq+k6gRp6em1U2sfUfJdPCV0S8XH8HooGa94UUbskVmyh0r4FXYjtljMuFZ2VyKwx2rDAsrYkcs+ZVR2dsabPJFGKO6wn9iSJLADZHAiCCBFRr3O6PpDpV0sSaJGXTEe6hdQrNvA5JoHtVXX3vg5x/qkuql1sx1hU6lTsnC2FEi8Hap4A79vpnZzV/I/GmMaYxpjGmMaYy1s2q5N3iOS1cLhJ02jswV7lRFRli6IV1cTtVUa7ypzIxO1yo13arXfSq6x59PHqNPNppgHjmjaNx/b8WBB+Q5FWSCOx58Ze00z6bUQ6hDTwyK696tTfIFWCOD9u1Zr44f4n2wjpgqXeI8zavPoclIctsuIWZjU1zSrHJKj3jGKyEF5mPcWLfjrxwnOcx806Dc5vBvUHpLq/T9U+p0SvroIbbTzRkiZFIJZG+Sl3jIAVyGBG80obO/dJ1ul1mk04LRqZkX3Q8e8O7AWoAsKtmiT/bxkwh8QXYCRZMrsWzDGcuslY8qfp2xgke6Kh3skd82JNH3ihIiklI4hfThV3ltenLG6JJ689WdMiljfTdSWHTLskfW6dwjDduqGV1AFWCqgkWLVu4zZk9AdM13sFZ9JFLOwO2DUxMyjmyNOGDAWPlQDFuCAau36vqfw20ZdWuT0NHGiklnNSEqMinzJ9hXORXR5EuvJJB6F4hqnqQyWJ5zUcg0YLuVcOP8AGHVQ7THPqZZjw8HtGoZSTxuDAyKAAxpwSCRxYrLl/CqN6RRHHGxBSUnesu3ngAfEHaea8UbsgWPbbx7XCs667xv8kpivmxJWXFuK2FMlTa+ECwMEFTLcJ0uLIBOePzRmORiwvUR2u7Dhc3Pb8Zta2mbW67SySzptjjdtEzRqFI9wEfIMSAQgV73VVkG7Wk/C5U1baLT6xkjv3PajlWNTK6nc4NgUOasChxXdct++68dtsXnyZVaK0N5gSiJaVCV8ONNb5rFQY/SNjmYCE9XtCGUZyRDKRzB8u79RTfjd1kndoOlTbJY/6cml0u7czEAB0YF0IB5UKOfPGTkf4NdOGmVdTrhGi6gyPFPMTTUd5XaQpVuCpqvNA0DGll4o23NLBlHnT6+DEiFMZ83KMsgvON3YrCnH6mZ5wvUCVg3sGjFexo0QPKjTUh0X1b+Jfqacx6XpvUvZ3LGsjBYd4cUKurBHf5AfXi88a70P6I6NCZNX1PpylQdodlcCzYAJcsBwASVJAPkA30r3D8VTIt/cnotltjHNFIznIKnEW5dGjmixBzMmso1GhKGI9gJNrZu9c1seeSOKIGSiF7Dscwmu2emPQPXpmg6j6q1QhMYDx6RCsrqyWdsxRmCgnvbHsSKPGc36x1/010+HURdDij1JiVx+YKIily3eIjcxCm+yjtzd5uebf4fA2/wrEsGqjSJFbh2NUmLQZMtUdLlRqGtjVYpct7URr5ctsX1Up6J9UgxXIqoqLrqCAAUFChaUKAAoC9toHYVXfn/k8CmkaaaadyS80jSuT/qc2QLs1ZNWcvHXrLeNMY0xjTGNMY0xlHcKi8rwnt7/AH+U+P5/sv2+dUPb9x2/UY739wf5/P8AbPP08WHDwYp1c9QNfGaetSBuJc2UZteFzhLCyB8fIQeXFb2+WxjLbtIsZvHLXL5a8oqx+t00RFraFkJNNQJIAJo/W/BAu+KvN96JrGTRwCm+b7XKkhgi0DyD2YqCRXcCu2YeZV1MprEE2IXypbHOethFOkRUV31I+Sj081jxp/oaAhHdzBORRs8xkWOn6fVQNp9RHFqo3B3K6iVlINgK7BiqgUAg3AGzYBobGeqazpksep0RaBlbchl+ayAkf3B2+R44PPcgfXP0zN889pDpIqMpnF+lVcVk6f3KiqiuR7EldjnOcxFd28K/6URiuby6y3oL0zqgGk6VpmJC2fbjB3eSfiOaIFmiOBVVkj/6mdehDgCBrPBOnX5CiPiLKhTzzx5uzlcg61t+pdEfHUyM3pTRSx1O0DUsEAbtUghT+xZPYRGDaq96q1rexvYjlVbcX4W+lUkjY9PDxpMJhB7zrAXBDDdCCVIUi6rb9r5xqvxK6oUZ4NPp9PqJYvbEyQAGM0ASCGNEjd4o8kDOmeT7g7j3TStLZ5HaleqkSOa5vCBeVVRHPUI58djlVHL7Iid/Hb7fKbnF6a6JCq7OkdPjYE066WJWoVQNKLrkWQN134GaTq/UvXNSXeTqeuLPRYDUSlTz3WMttQECjtVQeSeQM4bE4t6eYki6hRoL3r5pHubBjEJIVEYjzHOh5r0VjWor1I9yvRG8qnCLLwxaTTgrFpoIlJWhBGEII+J4TiiO4oWbJu7yHZtZqRveYzdi/vAyWF7Es5YnjkWQKHbNi7wI9tKfcrr92QBZwgWsbC/1NuOSPJF3w2Gw/HpZquWrDf8AcknrsgsKadFKRrWBmRo5RsI4bHM96p3TTTmwhd1j/poiBhxu3BQBZC0eB5rkZiaqYrE8bMSW2uu1QoU9tqlQBtrxz+1Z6HrU7WtRfdUREVfvz/P59/31A5DV8i19+K+n8/QZ9aZXGmMaYxpjGmMaYyjl4av9OP8An21Q1547f7HH18cH+cZpn+L/ALZ4pZeIoSjzXIQYVh+5NbgFndZXLjqWNXR5GPrVlf3NcJBKeRRMiJLKRsWMYvqJbmgEZ6RnWpZINHJNHG0zJC+1E4LtRACEiiVLKxH+kWe4zcfTKfmG0sbuUX3n7kdhterNgAgG/pfIzFp1d9O+0GKtiSdr8px+5/JRRI9iSrumWMW5jHQhKzII5+RtHIcoyx7WGIxgAk9oxq5jnpri/pX1X1zT+qm6N1WCWeDW7vy86JKqq+4gIm8H5qqkNW7miOKztvVvTvSOp+mZOow6mKGfSxV8SiEBD8rBa1LEgA7QTR5J74pMvjQWyUZGGJrntVGjCiPeVRq5ilH5SK4rVJ9Lu1vPunCqqoq/QunLG7LWNoIqyK8GhdixY48ftwef2V+DE/ElSL5AF0wph9DyBR+tWBFdhDlD5VgJjVROV/wk1nHtz2u7wN7Pt3L7cIqIipwi6lo6BBq/AIB7VyfPknvt7fQZHSzQ3/fIW+IBJBI+V2Bfcc+K78VZyK7t5CjONs8iKiPRzRyHNIxeX8IqNI1zFTlUVXcKvyqtVNej82AVgpqgDRJ+tcWar/z34uIIlG5i7u1/I9+LWyQQKJPcd/P3/HhKFGcRXFe8pHohVUqvcVWr288u7lVG+yft9Kpz7rz52e2xJovdbvoTyPt9r/z9cyodRasqn4MACe91dAnk8eP24Obhv4ZHA1tupvdDOStVzcL2WlRhGc1rmtk5fk9TARrXp7tI8VSdU4Ve5nei8I3lMTXSVEY2B5mPJ58kAfQD/nI3WKVVGLXv4oCqIN8/cDj6fTzm79qLyOxpjGmMaYxpjGmMaYz5f/C7+i/t/fhNeWFqf0v6duf/AJyh54+vH+ePvmqV+IT29SVlWE5zEYBk0e3sWPLROPVS4kbILSEjk4XlWwHyOHu7eEbMHwrkV7U17V6uaLq2j0zAvp9fp5GvukE0CtuUP2/rR7jVf3IAeSM6F6Ziim6BrnUqur0Gv91eVLtp5IFRiAaJXchNAmiLIG7NVbAARFt76+ydGOxLCKaTkVpXlsLCDGt50c4RUUMq1hRlPHfOVr5TEREbGaRxGFF5g1nei9L0k+tSSSCJ4o199i6/1yjC19hyAI23US4JIAo2c1/1P6h1XTuluItQfflfZpYBLcMsrq1jURn4lQgLgkkBgAPkQw5/bjMM16gd0bPBqixosYPZ0Ftd0NZTYBi95kVvZVzKmNUYlX2LwY6yvtbCTIeki+LY1tbHMriyYRyrGju32CH5FVRB8CFNA2FHgi/mAQe5BILE85xeXqE/tIs+s1TuAAyyysil2NnaI9r7dzHYG+VCySu0ZdO2tptruBuzM6fMuzHfPGNxLeznYfjck+d02Z0UXPANlV7cdyPD6DaqOgYNVZgkz8jJIyeJAj19fIifmTSOfLZkIzKfbYlXr4b0j2rzXLAE3RsWTRqxYzyXBQSe49kELum1AJF0SQWscXd031AN50c3K3NxfDczj036yw7dGDW10RloYO3tHjDaHKUkW1ZkFTBSoddRb5leWHAtK+8PNnEsY08cCwgxJsadDd5ltDUixtYo7VAZbN8PtFBvNGqPi8zIdTrPa/o6yWM/3rtllkSlB3K6yN58bbB4uh2jMlDVV+RxJWPNQmLZJDj3uLr6o8wrYLjGiSAGkHYkgpQWEaSLver2vThqGe4BFSL1ESwy7YbAc0gdtwCkG6bnnxXNDsD46F0LXPrdIJpDGDGTFJtG1RIq2TtIsrtIO6iAwNnte8x+GH2/SvwLqSz6RFcORNuNucQiHcNydwIldeX80bSKvC+WY8TzW8coR7F+OO6E18jMY1NWt7qr7DuDXYACufr4Jy9eKaOxVqSB9iRR7nv/ADxW1frByPxpjGmMaYxpjGmMaYyjue1ePZePn5/9aob8Vf3yh7G/HP8AjNb38QhjT1wnYzLQI7gkvOsSnvE1yP8ATkj093GCZyKiPCUzH9o1XlHsc5uvDRqwHwj3oQUZhuKc/PbdXuU1Vef3yd6G0gTWIGkHwWwj0GBY91PBHAB+vF0Ac1N8LxmjybGNyKg4qaiR+LZRJy3J7+8uIsNMfoITs4ixaeHXVdhGjXiixy3CwkpSNl9sKGGOUthJcDY+iwRyHUiMKHCMxaRwPgW3AKDxwBVcdu3gat64mnRenh1SXTtPvCKqrIkgDKG3kg7Ko3VE/Whdu5H01QNqL6Pett70tqC7DSVs7F89xKPLg2U2fmtXCk0lw10J1d+aEw6wgpLuVNEHFu6ONaQo35rINA2JYwpRy5RW4VQu5jyoPBoCz2B522bHGc0aZNhaQLIy0gsLfAIBJUEE35rkULHF8DdZvSMyPdkH5RmN/u9t7h2bSNxNyrXL6+7zS2p6K9TBcpoi5IOhxS/vrhJclaE0rG8lx5L2m8yJIymdUd8I9wMtsKIlVtoBHjd5vsx+gPPayM9RoauUlmJ3AFjQAINBaFHtY4NC+2dVss6Xh2VpfmtbyTBscdPmVe+gNkO1WLw40zbu0hV+b0dDTwYkSO8uNOtI9rJSCd4bmmFc3dTYZAerte2p0pkILvu3gkgKBwCbAv8Acdrv78ZkJqAPkgIXlWUAnmz/AG9jQ80CR+o45wGJhx1lDhlhjwY9lhshMdg3YMgfOZPhBPMsrVpq0cVYYkSdYBDWymS48mTDjEmyqetWbHC6N6iIo1VjGBYKhd+7aR8QSfHPngjx9c330d70kcxLINPFIQyyqQ9yJtLVxdDkcVfF3noCfh8cHZjHQrJyB4EZKzjeDNLRDor1Q1dUV9BRQURXonPlyolo3uT+JHInCOa5NalquZf/AMaI788efHnj9j+mw9TI/NMgIKooUEDg/cfagBXP2zOpqxkfjTGNMY0xjTGNMY0xhefsvH8/nTKMCQQOD9f5/wAecwm+OzjQbHpEor8jSK3Hd0Kcb1YjVVgruku4znuVWqrGedBjtVyKi9z2oqccceCpBBRdzFuQO5sAGv8A9Rz/ALjJrocoj1Mive14WUsCBZDKwoHvV8gAdu9EnNFuwvrzG7eQ+huJVahpInlbHQBY0ksbzfTPkwpoZkCQUDZB2x3yIxXCaUyDc1CkR+ZpjMjWN8XG5h2JHJXnwODZ+tGroHL6hptJqLM0EUxVLjZ0VthYEceKoCwPuMmyPhe5m6tPjeXwMMySBSXpC0FneYi/C5WNZGWkaN9zGyfGFqId5jtZeFaR5ZtUeUKbcmbGrquLFCJw9t0mommWKRopWjZlttOoctQ2qXUg14BK+eSRznHuudM0OifVJF1HSaWcEltLMVQf+5NwbZAwWMgbmCMAxFbh2yNC4BuXMy67dFqslMyrxq6jXYJs63rshiU9ZYQIswr5TsPqpsjHKo3nCNSpZToD1lxJyvdChuOfPRiJJFCylByVkUCYtyBtu7H+aINn6QB0OtaJN+r06OxEcUiaiBo5CwHfY7NbAHbY4IF0LqFdzMQ3C2uW7yG7wXM7GtaSHErcpyuBi0nEMadfxCGxWJWRjU1hYWr6+A9CUUm+OA6OGZhYsiBLc2Rj6jUzwIzDTShQNpZuNpbwKAo+a72LNDvs/Qul6TU+wsutil1UbN7mkUg7liNPuPgkG+CLI4s5HmF2NxkltCLaTCSyjd2h5FGixxearUIoYkCNDhB8ztb3qGONXdo0crmsY1sJqHZrLf8A20Dz9DwO3F3dUa58nOnaaCCABIkjKhlNha+QHY+SQCLvzzQz0xvCXw79EeHl0xVfl+Wa1wmZlxuURHEdmOSXmSAK7lGqvdDsYyMVydyMRrefpTUDOxaZ67AEChxY4A8jjgf7n7R2sJOrmNk1dX9aFDuRVjx/nMjmreY+NMY0xjTGNMY0xjTGNMZjw8VPbAm6fQxvjXRTDBYYrRxdwYLipyMi4ZMHaTwOXlEa49N+ZhC530MkEE4iozuVABJAHe+AO5PIA/cn9PrxmXoZPa1UTHsSVY3VBgefv44zzq8vEWPZGYUbxvGZw3tKxGva4bnNXva5Ec13xwi+6cc+/susqNC0g3cOQKBPb6AnzzfH1v75NTCkbyKU/TjcD+3HP2vLYPubuNgg0Hh2c5ZisdyklvjUd/YQYb5hhLGJLJEjnSL55ANaB8jyVMo0aiqqNaiSkE8+lBWGeWMHliANobyAR2N1ZHni++a/qemdN17XqdNDOUUiptLEy1d3uK7221wb7fQHI3vepDfSyY4U7djNrIK19jTuBYXJ5cda60ZHj2UN4JHeN4pkcAYxlc1zljDaJqtFyi5X57VEkmaUHtYQHuLAsGu3f6GvrxYh9P8AQ0SMwdP00ZSVpGLaXhitmNhTmi3aggArxdGKsh3Jz/NHLHy/NcoyWM8kVfSW93OnQ1dBCwEInpCGdG/wcdGxoa+VzFjNYACsGNjU9NJPqFVW1DurctvAUiuVCi+/e/8AGZGk6bpNI5k0uj0kUxaR2nEYjaJnO4oD/wBx8iwRfcEcGadi6WzyHJaShpoqSrO0sq+srQcoIZLCxkhhQxkKvcwYVlSANOZyo1jPrcnsnOJIAIpBYdo1JCXyF/1EHiib4U/r5yYhsyKGB2FCzlqsKBwx215+lEj7Z6r2wG3X/SLZDaHa7vYZ23u22GYeY42o0Z5NDj9fAlnY1FVEYWSEr2p90Xn4X2gP0yDmdpJJH7lpC3FAEE3z+v8ABzxMGmecaYxpjGmMaYxpjGmMaYyxN0MQqtwNuM8wS9A6TS5lh+TYzax2PcMhoF3Szq+Swb2/UwijkKo3t5Vr0ReFRFTQGipBog8G6o8j+d8qGKlWUlSpDAiuK58/fPMB3orC02R3FYUzpC1VlOq/UvY1COJXyyxXocXuoHK8TkeNXqxj+GsVWKnbOiA0xUbwFALg7WvaDajv2I3cHdZ85KfmfcQCzuUKNpv+oRuJYEGhd0LBJNUO99YcrPatjI8yRTi+prH8Gjv+URGq3go1VGp3J2vRyqi8ccaoyxhRfxIBq+4YeO31rxx+gyysoJNxnk0fktjyRW088gW3YHzkJTTkcip5CMb3coqSU7V555/08/uq+yonLv5d16PZ7YYkOQRwAb88DuDRqr5ocX3F73AgIWOg10xYXzVjxd89+/FDLdBKRJKd0dje16tRVIr1fx7r/ltH2p7oqry5PdffhVVL59kheDdHz9x+n+1ftWeEeQuTXtr5ZvkOQaAAq7r6/wDGZcPCU26g7w9cPTTgd0V4aOw3Sxyzt4cPhkufAxgpMmJGaRrCdg3HqI/qzGVBMArhsa8pWNXD1SKsUrodtIV5Ns11yO9Acg2ftXbLpnX25pOzmL2gwa7s2GB4u+3bjkc989PISq4bHL8uaj1T7Ir/AKlRPdfZFXhPf4TUF/PpkRn9NMY0xjTGNMY0xjTGNMY0xlHfC/fjhePjlUXlE5+3unzry1kGu/BHNdiD/PrjPO38Zzpzyvpr6s9xZt3j0muwfdbMb3NtvryvrHCx2zqL2SlmeNCeBEjAnVNjJkxbmvRFdEkIyQ4TQzQvfsGkZZooishV0AR0J/uVQLNcEHaQDd354ypcEbeQwANg9gCaP6muRX/jMH2ZDLDg+oA+WMZvrR7nSRCevCfQNp+Qr3J2qqCTnu9uUVU5v6tmCL/S4ur2g/EC7NDvRPP9v/AQNGz7Vk3M43USOKsc12Aojt+4yDp1hNY1FJJMP2Xn6xJ7eyco5RqrU4REREVF544XlNXtOqCNiQoAPevtfNcnueP3++UkLFqRuP8AuB5Ao8jvd9qHbvz4yx2X3E9zjSxowSK9WvkNIV6NXhz/ACRPcZyMROPcat9uV4aqavFgaWNQT9aFKPN/c9xzRPfnKEsa9yQ7F/uHlrI43H+0AdibJ7Zts/ha+m7NNxupjM+qawxGQzaHaTby/wATxXN7GOQUWz3ZzEkKsPU4607EHJNRYc+7PdS4xSkrC2FfEkoA05iOierSJtjjDAsb3qtcAAkXR8/44/TL0kiuqhVC+aFcDn6ADk8/7iu2b7KIiIiJ8IiIn9E1CZayumMaYxpjGmMaYxpjGmMaYxpjIb3w6f8AZzqQwew223v27xfcnCrL6z0eT1g5go8hGqxs+rmjcGypbUTHPaC0qJkKcJrlah1GrmOJK8b3GWRu+9TQ8CmA5Ng0P054x5v/AOf5f885g96hfw4nSvvBjEnF8B3K3C2irXJEWFGSpxnPBwkhKV4obZt3Gg3hq96kawoi2j5XliEjJaOR73yA6tqGj9mSJDyPmQQaU3yVYcnwQAB9DmOumjSc6hCyub3AMdpsV28fX9a+mY57D8IRiFiUQC9Z9lHqkIwhQw9jobJpFREY9UOXcAoGucxreOY6sa5rXdionC+h1PaCi6dPJ+TyEfTyKNWeL85eKg33skEmzzyCR37Hz+pzuN06/hTfDz2eyGJlG6GRbu9RVjDeMiUmYXNXheDy3IjkMGyx3BIFZOs4ZUd2rFmXj07U+srn8vWxL1PVUfbVYy/B2/tXJ3GgfHxFfoTno/IAEAgXVgGr+xsX9/rmyFt1tvge0mF49t3tnh+N4Hg2J146rG8TxKmg0FBS14v4ItfWVwQxgMVyuKYna40k7ySZRTSSlK/D5Pyc255ZvJJ784y9tVxjTGNMZTlE+VRP900yliwLFnsPJrvX6YRUX4VF/ov+3/320ytjtfI7j6X2yumMaYxpjGmMaYxpjGmMaYxpjGmMaYxpjKOVURe1EVftyvCc/blURVROflUReE9+F441Q3Rrv4/n8/bH71/L+3/I/XMfoOsbM6q3zGoy3YHch0yuyK6pcUkYlimWW1NMFXhksgyMhuLClgigRptlHcAllWR7CCGC5tixTsXyV1dPUesjM8ep6NrWdZHWE6aCZ4iiFlBnk9otGBIpBYIw9k+8qsCFP0TN+Bfp/WQdH1nRPxO9JflptHodX11Or9T6Vpep6bUaqMajVxdK0UXUJV1X5bpjIyaWbU6aeXqpTpr+27iXJo2T6lMf3dpsfl/prK8cuLaZNqJldOx+4dBrLqojqlxCl25YEUEFY1mCxro4LJkOxKWEvqIcYkkInSPTetQdSjgKQaqJ5TIrLLp5FWKWJVE0bvt2oVkDoN5BJSzt3Bc0T15+FXVvQnUurwT9X9P9T0nT49Hq4NXpOr6D8x1PpvUiZel6zSaBdVLPqF1PT5dLrmOmEsCrqHEEuoRDK3//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwAAAQMEAwEAAAAAAAAAAAAAAAcICQIEBQoBAwYL/8QANBAAAQQBBAEDAgQFBAMBAAAAAwECBAUGAAcREggTITEUIgkVQVEWMmGh8CNxgZEXJOHB/8QAHQEBAAEFAQEBAAAAAAAAAAAAAAYBBAUHCAMCCf/EADsRAAICAQQBAwMDAgQEBAcAAAECAxEEAAUSITEGE0EHIlEUMmEjcRVCgZEIFqHwJDNisTVDUnLR4fH/2gAMAwEAAhEDEQA/AN/jTTRppo000conyuqEgedNUKRiL1VzUcvvxynPvyqe39UReP31QsoHIkAXVn8nwP7nS6IHyfH81rrfKjC49WQAfKIqIQrGLwvwvDnIvC/ovxqvJTYBFr+7sdVV3+KsXp8X8eL+L/H9/wCNYC4zDG6GFIsba7rIMCGJ5pcuRLGwIBj93uc7leV4/lY1Fc9yta1FVzefCbLxscMZZ4U4/DSoCeiaFt5IBr8kVr1ihmmr2YpJOR4qVRiL8eQKoHz/AADqwp9wMNvIrplRktNYRhIqmJHnCcoOqt7/AFA14IFzOzezStYrEVOyNVeNW0O6bc8buuVjIkfblp4wEuh9xLAAE/nx4J17SbTuMTR+7iZQLnjGPYf+obJHEhSGJqgFIvyB41l2ZNQlViCtoD3E4UaJJYvdFTnlqeyuaicqrm8tROVVfbXpHuW3S0I8/DcspcBMmFiVWuTAByaFiz4F96+Ww8tCytiZKlCA4aCUFWPgMCtgnuh80a1kA2dedE9KdEIq88dDjXlWrwvCduV4X2Xj4/XjVwk8MgBSWJwSwBSRXBK0WAIPZUEcq8WL14vHJGakjdD0KZGU9+LBAq/i/OrtCjciOa9rmr8OaqK1f9nJy1f+F19l0UAsygMaWyOz+B+f9NfH5/jz/H99co9q+yOTlPlOff8A6+dVsUT8AAk/wRY/3vr86pYsCxZFgfJHi/7aq0BBAINg9gjVdGq6aNNNGmmjTTXCqifP68/2TldUJABJ8D/v/f8A/f4Ol9gfJ8aTrOdwqvDgsQyulTjj5j14EUkkn3MRX+kxfUUbe7ezkRGNVWI4jOzecLvO74e1Qe9kc5DQKwY/eXLyYKvtJ5Khj9/L7aIJ8HWU2vacvdZjHjoAihmlnfqNAqlmHI1bcQWoWaUjUa2/nmBvFiGS1TcQwenn08g6R5y2lj1mNAAzWSohK+rtW2FDLN6ggtNbxfSGYkch+0Uw3Lone/qJ6xTfMWLCgw8XalkePcIoWXJ3Fl6MbOsbOuPKoYl2bireEsg1vP039M/SOXtuUu57xnncpIxJirCntYl8VdCJZQqzoxPFxFyewyiiDSe7l70ZzabIZjupi25QKe7preLGBiWSWUbHq5BHGNn0lnYNxt86M5k8zxLIc09dJHEeUFmxjT8YP1fvEr7O+dL6z3DFzDlQww4b5YhxSMhgIly4kT3OPI/dx+wFFJPRvM+k/TmEnqXE2LI9J4mWpxpS25Y/J5lfH5NJJEGBTkUUMA55gsVB6rUf2wG/m8WdX+TXG425lEEmNvjQqbbhx4eSWOY3U8/dhvzRWx8eqK6pjkgy+I8mXazE5O2HFGhVFB9iyHxsnLfdfUmMc/HX/wAHifrXdgpIaR8iSR7kS7YKqkCM0CT9w2Z6v2nbcPD2qLY9hyzjZyuc3cIcNSmGyGo1chCWeQjviCLBs0Dp81w+ruRUbrcbod+ZxZzsgxu4kVUvG5A2hhtsLIseeeI+PJYZkcjZo5scwUcIzDEG1izJt0x9w9rHxt02kZLX+pbHz4ZOKNXJmR34SMQbVRyN0K6sa8x8afGWaWbFzjCjMqLlYcnHL43/AE4ZAnKO6sOB/lPIV0ec4nUW2OMS8oy/KaVsJbuvxmPl6Zq6xx4GQ27ymENa/HifmQsiewJQTI85KSrdXKJGvV3dy56fY9o2jHxsvPkhaL3YlXcIw7yY7yqxBeGNlCoW4clkpOVEqR3qxwt0yt8y5sLChkX28aeVsBljYOkLqrB8mREZrNgPGWZQTVE6a1b+T+S1cObb7e2r7GNOsnQomT5HkNgyAAYyuaV+K4LVXsj82CFRmDFMV/pp6CFItiJCEdYQ7pjJ/wDBpcrNypZZRjZufM8cACcVDY22w2pKtdksFcAE8aAEl/5egmSFN3hwcWBVjEu34qmfIYMoY/qM2WNRxZD9xpWDeFNC6ti/xCN0GxryDTZ/WZaSpu3FvLrILwNm6IKTIM+NUrCgw40WvF9IEj4oxDKFj2uaxjmAc58iwd09UYELZE25NF7ZuaWZGlEhPYiMX3DHU3XRNeG8XrD7l6L9G7nMYsfEichesXa3PuQqALZuubgEkuO2IAAoEDTyNrPxNJtjujj2I7hWmGhqbGEWTdRa2seGVUAtZaRsdmwr0N3JDPeIgypZVk2kgTCxHLKeOrUYhyrzB+qwxNyhw9/x0x4pXjEOYkwaI+7+2RuF+6rG+RXpGID+QNRjePoq8mzT7p6dyJMqWF5BJhFGafhGC0iFWCmIoPLPYYUA/InUydbawbSIGVBkjlBKxFYUKq5j+URftVflFRUVq/DkVFaqoqKu8UmjkjjlR1kjlCtG6EMrKwtW+0AAEd+AB/ABrn90MMjwOrJJC5idHBDq6iypB76Hi+61k9evnVNGmmjTTRpprhU5T/P8T9uf018OpaiDRU2D/wDzvVCL6PjUenmXh+5zaGRmO1grPJcpqnQZkzBqiZGSyyTFodmsqxZChlfHmSXwzlY4sWuOqzRemI8WUUMcZNG/WnZvVeZg42d6QljbNjas3DaURT5GEWQSjFZiXMqlVNRKWIbjTEjW5vpHufpZNyTbPVUn+H4UgmXF3UxyvFiZ0sTrA+QsSGMwksUYzkKC1hgARqL7Kr3Kctoa/O8WNU0Ge18GRV2mPWKRxXIoiuZ9DJtKaagXzRwLGQ6juKy3ZUy6sBoxq6RMger6Gr/S+FnCOfH32M4e4uTBixskvuSSMKE7TFVllkJ+2aPICGMKCq+SdzZeVg4uRPg4ZTcNvWNcqXNxxGcZPt4OEVf/AC43VA8cmMziQtQVR5Sfanw9z/LMdNa+Svk9C28xbJVS4yLA8Wua4GR2r0eoWOvrWTIlwKQMqO1w5sWIQhv9d5lK+QQiJgsL0n6T2/OnzvW3qLb3kkm7wZNwDMFjcGMFOREcoA8t2oABoHrO7r9QNwjVNt9Gek3Z4UD426zYboIDPEpdYIiBJIpNj+o33MWI770tELB/wxIebU22NCfCLPKLy8iwaA03Otw7x57iYQUGJKmzMem1tDBOecWIIhjOI1kcz5DBCRrnvzhz/ppvEw2fZY8DJyMlmjGa2LLlxgIv/wAzcWSOJEJ+1kjaQj7hVVqJyP8AVrCwMvfNyn3XDxYIv1GXhrmx4Mb8jajFwSz+6aa24hST9oPesj5ZeMm121OAPzLayvvMgzzC50dcjwWszs6Xt3EsxtkFHU3ds1ARJkIQnWkZliFHWEJJUJ6tOQBh3u4eg/SmHt65G1Ye1Y+6YzouY2LH7n6pGTksikAEohIDUbFm7NAWXpj156m3HPOFu2XkzbblRXhvkwgJiur/AHIw9taduhTsoJBHIAgGL248ytw5GMF2pg7Q3GJYbYfmtlkWY5Xl8PO8gtrOpgyJuPFmJTxYhaVrZQItYCRBYSZXBKxpyfQDMJ8c3WX1G+BhQQpDt2JjRyfqfY5TDOPJfaOaW5yxxWT1GhPIKLAA1srbfT/pjGypt0z5zu+fJKq4uNHH+iMCSMPdhhGOWEv9Pkzc7DBTYY1rv8Zap+4TrbcrONoi4zRRY4cnbbXmU3d7cWuUyWwmxsQqaONlcjGEgC+oI9sSJU2jxRAxRmEybM+7PY25T4+I4wlxs+XBSNXxMXGRMgS+zHLLHE3IzG2bkOKKSQOQU+cRvsWLkZPtlc7HTKdxETLIsEcAlZI52YRsvsg0hMjKQR9qtQGnYS93tqRUVmXbXbGmhZIBCU+Qw8zaCbZUU0Y3jhxB1JYIJsSArhLLrySGrQySCR5Y8qQBogzT07n/AOPQwZEeRNt4DMM7bzB/VdloskjygO0fEgMACDZCudRzO2CfZ5iXd8qNwpinxsiOJpI6AV+aMHZFNqbANg+L1jtsK2y3Hq5C02wa5vuNDtRGoMxrrMeMGhgLPAaZGvKyujOo5LK2KSSGPaDWI8EJBuK86je0lPVuy7kcBp/Tewbfn7rle5DhJkQp7WPHjMkmTNwlPGIPy5uzGuSnj51XZ9xijy4/8Z9TZG3bPA7JkRcjI+UWhLx46Ckn94MqqHqRKHH7SxrY38YqXKKXarHoWUnCezjV8UD5AHvJGO4TXdnwjuVyy4Udjhwo89ePr1jPkMYwDgprdnpjF3HA9O7Th7lLDLuEWGBlywWYDK/FlEYNfaq/b10LpeuzzJ6zyduzvUm55W2e4MObKeSES0JQSnEs9E/ef3mjYJF8SDpyKfCfrrP6jWjTTRppo000aaaZD51Q7mLtnS5ljk6dUXOH5EEwbasMWNLhBtY5YaK4wHDekQktsZshFeg2r6ZXoqsbzrf6mRZX+CQ5mLPLivh5aSGfHPGaMFWKsjj7lAcCwAQerHjWyPpjLhvv8m3Z2PBlQbjivF7GSnOF3Uhha2Lar4kEMKJBHnULGZebmc0Y/wAp3fwvFtyqNvJBW1jAOlqY8Zr/AECrfUKR5rJ41e9kOTbQ7BsWQjVd6T2tXWiMf13vUY47thbdvnGQkS5cZTNKj7S/vRAFnkHTOEDLQFnkAOhR9OdkyKm2Pcc/Yy68WhhlMuEwUHiPbmcqEDC+F19wHxpuFru/4G7iTIS51ie92NTJsgMYFdjucjyCmsyM7GeCcy4SvsXvY1pXl+nJH9QHYDytFw3Ubh2f6d7luuRmbh6YztuyAzZb5SZEb4Sq4JLTSTOZUslhxEQNL57A1Lin1N2Tb1j2j1D6fz8SQCHvbzHuiygqRFC6R8FIVSOayMx5WBQ7cxtnvP4p7WwYjcDHQU1XFp1oymttraWgzCV6kgCy7m2yaDMyC1k2BgKQcQYiQ6wPrPeyuQjRvF7b/wCvvTu24S7V6Zh2Xi0aQj9Th+xIpLFWlWTGiZWdkIBZ1B40bs1qNH0L613nJkzt+yd0aZpDKEXKkmxlBAIiEDhFiUtTFqY1yF10UP3e8hMT3K/OKtvmns5gkGwlqyWS62qzI966tG4iAqZVtBhnZYNHGe+O6S8hjqrXlaZCyiIyx2cSbxjY8m7esMvGUM/CDb8CRQsTFSsZeM0/tjyzEC6KlLI1m1wX2aYrheisncJ0WETs2444xpHjQB5fZnVZBzZb9tEIFgkmhpj8zB/Geoo8uo5HnxghK3I8dmUasx7arNLaTXoRI30d3AqLqfHqzXNU4UiRDPNc2M48h5ZA0G70WbEw59j2uCfGffI9whnjK8s3aJ5mj5/uKMjEs/BiB4Kklrro4nM271JuOfHn4npnctrkhmjmQY284kUB4H7o3+00hFhqW6IHfg+txLeT8P8A20x6npE8j94cwta94JljMx3b8VLKsrUcMcQs9bm6u7WLW/XNDHWSGGJgxNEKPDFHAxg08IsH0o0+Q2JLv07ySROjQ4ghWFVRUaOCVzyAkIUs7UWVQK61e5H/ADpHEv6rD9OY5uVjLm5zZJZZWDBJYEUIwUj7QCK5EkXQ16OH5VeDGUbh/wAd1m2W4W5Ob19O+oXJ9481e6JIrhnaeJDlYrjCChW8WPIUhorbJ4TNKReCia4rnyaHdcf07AMvD2XOypXcRoMjg81kV7kiwKyFfkkryom6PWsCPS+5b6zxv6i2fbseIcnjwo3RUjB5NHG8jllAJbiF+0FjxsCtLjWeZO5m+N/i2yO3oYWA49mGT49h48U24qx0ZZ7LyxhRShlFhlfayhtgHPIMJ9h1cJO3RfddZbaNz9U77n47Z8MODitOqnHx1ZDNisUY+7OArchQVwF+5SYyeuQxu/emfR/pnbsjNTLO8bjBBLI+RkytNBFKsT+20KsQvIsVUstgEBhfetvemq4tNU1lRCYwcKqr4lZEGNjRsZGgxxRQtY1n2sZ6YW9WsRGoi8J8c63go4qFFALS0BxH2jj0tkKOulBND51yTITJI0jfvZmYn+XJY/7k3rKa+tfOjTTRppo000aaaSLfbDyZ3tNn2LiahDWuNThxwu/lJJi9LAA0VPuaQr4iCG9vu172qionOsJ6hwznbPuWOoDPJiOEUiySlvYFd8fPzXmuu8x6fz/8M3vas02BBmxMxU0aNpXkdEMerHdeNaju96mx0BFlnZPgtmNiqUyMbIESYQqDbIeqIIjGlYwCvcg38qz1F4V3XjmeMyZ+UIv6ftyFebdtS3aqTXEqfgWK6J7sdv7ZIGwcOMDkTGklgmiZbbsjsseV/gr3V9iPLM7KoiyXEsoLXyIskcgo5cZBr2G7h5o5kY5Y5Q9+wihf3QfdjlUZF4s5caSXuCV1a2BZqcyr1aMCpUx3ViiB+b71I4MmGJFXKj5LE3OP7mDwv93aG+iaWz2SPk1pHcmzeuVklkaWxkeVHKhFHLKF7GiRxeyohERqgGiq9eqOXhf0TjVhi+nYllZnhjVgA3IRxlbJ7rkrfb1+0KK7vq9Zt/UkkcBSGeVCRX7u+NEUWPZJBuz0K/Plo97fLbQrOyPOmhEGW4URRTSuUrEa5z3yVeqN6gYjVK9nHs5rU/nREl+PiY+O8cUcau7ISAIqHKhfQULQIJ4kHu/jUY3TNy5lEhzJFiVVZwGJZq7U2SG7Y91/P215Rm9LEmLDYyzsXCthEENEKZzSKxivMNp2De0Jm9HOeOQQXDV6J35RFkmJAPaBKQj8j2gC3XfdEX+D8HvrULy90yBMI1yp3IXkv9SULRrvtlog9WCAO6vyLOtPVRC95qqkFHOG0InSZLEkHc1gyGGx7/t54G8xGKNqqi8cORqSTbYIiSghBk42rMaQULF9qD4NCmo15oDWB3LNy2Uy5GW7obHtr9zEn5F2aA6JBBJvqyDpxWJ244Tq6qq4cghZA2chYjIAjnRGo1zzERSuarnK1Ea0r04cq/d7LLMaSWQR1CqugIaRBGood2AB+2+wf9RfnWBjkaAMyZUkaz0OILcgp+DyvyTdeKF0NT3fgj7P5FuL5j4/mNi0b6va+kyDO7cPbkUeckNKCg6NMRSEkJZ2kAQVYxXMgBkETo5HObIdlQZG4L+1f00bMeJ8E/5jQq7BINAeAB8ah/rzOOJsbxvIZWzjFjwmiCvtsjMGHf7gCD0BVVV63XRN6DY33+1qJ7ryvsnHKr+6/K6m60QCPBF9+e++9aSPRIBsDof2HQ+B8ar1XVNGmmjTTRppo001bna16IN/u1ycOaqcoqKvDuf3Tj5Rfn+y+MiA2WumX2hRrj7rBGI/+5WIP4UE6+G/dH+AWf8AnlGOakd/5SAevmj8UdRjywwxKvI9yqWU70pFba2LQscLvGmRoVwSNGIYSsVjyhOBwjlGRhyuY5HI7lFXin1CHwt+3DBf20jbNyo4ygYSjhI7MAfAFEG6N/nvvu/0fmJl7Rs0wtnOBjiY/b97LEgBNfnySAAL/B6iv3GgWoJ1lHnRGyfopD4U50VW9WEY5pAucJ3V6CnRnDOLhEXo/j7XIrdW+KElx1aN3oBuPIjnQYqeXEADkSKPfVA+BWfyJWEgdoQTI55E9A/FnyKoKOwD2L86a/uBXxJMZf8A0GwnvA8aoeH6besljxoV7xjVfS7q3vwvLUVzuqcayMLTR20o5hQG+6ulW+wR/wCkGhfkE38GxyJlY+2h4hv3f+nkKNWf9z+fwReo+smisrLuyqCGWQEMggyMC47guMJvZHDb7dk79OiKxOETjl7U51LoHikgjyHCoeApiKZQfAU/Ni6FHx0SOtY7msjMi/1OFfuNnr4IBJNVR7ruyKIJyThR6miaGyjJBRqOV7zI9Fcc7xuajmNc7uJQ+miqrUcpFVFXlFTTFR8qVvYdmSyVUdgsvY7Av7iSOiB3X8jGbrPhpF7zFI3T7W4izVciDV1fijQFXZ1Z45OLNdLHilaspwnMY60ULBRnue5w3hC+QrCN+4b0V3C8o1704RGquZZciN0iAZJR9ssfQEYJ6qrNsOybHZFAEC43j5OLIrTSEtHypQK7A77PjjVEfg9dnTl8Cpr4NsKbcN9MjwnkAdFckiWiBG50gwXyVVjBxmucvqPa5XF44C5zmIskxjJwKRSMhRWtV6v88/tuieh3RP4qteOVLBL2MWolYESMp5Ky319p8VYrj5HjrrcC/AKwtIETfbLGBcEK1WB0sY5FQpjlnyLu1mNkyXp6r5IwRKwhEVzU7SuvVEG3iZ+kImK5c1BSZeLEeSP3Fez+B4+CxN2QNae+ps4vAx4mBLLPlJRHXERJyqhVXV2R2fm9bIbOejVX5VOf+/dP7f4mpr18ePj+3x/01rHo9joHsf6/996q000aaaNNNGmmjTTXURfdOE5dx+vt7cpz/wDv/Kp+3t5uvbN10igg33bGiDfRUiyQCa6/GvliLAIJtXIIqxS2fNeeh5/61rWJ/Eelfw3uTnNOgWfR2WT2gT+i3k4DXAI9rGkNTntwg56lVqr0eXheWv1xl9UYpcH1hkvCwIGQ80oNUFkXkT48mvNCwa/v299GkG5+l8IsyrLDhKgPIH9jOgAvvl4Tu/x+DqHrLhY1RW7qy2uZLp+ZTmsrizIr3JLm1sIDDBWQjnieZWlYVqu69nEUSOV7V4iu15GTnxyTY0Sfp8UOZQGHPgOyzKDaqWPlqHYo/icbtPh7dIuPlymKeWhDAY2KTA0AeR7Uj8HjRJuxVpBuNiM5lepFgG4GJrhvAIrk9BqI97xvYJUcNWI5Rq9vpscruPt9llWKs8gISGcgorKFRm+16Csej9tkUT1fVfBiubnwRKXWWFE5N+6WMKCoLFeTGz0p67qj+dM8Ltrk7cpuMoksk3NfPq4ceugMo0ctZMhEd1mxLCMFHOV4HekUMxxnuT7gqJWE7y5try8zb8bGh2fNxZYZvefJ9qdjkWQChXiV49khftAPgAdahmNvuFtu5Zc2d6gwsjFyYjwxv1OOhxQ4FUfcsty6sFjYJJ+Aim6OL5D9FFjDprD1ZMxgvRNCKwhu5HOXqita9rGoqOcReeqOcvPGsxsuybjiySzTxTwQp+5zBKPsArrmoJ6vsA0T5/GG3/1Ns2XDFBh7hjTSSNaos8FluPX7X5d9gKbHffg6tMHpLCihRo1jCJFkslSZBBuCVrEE97HC5RWt5c5jGu6qvf3Rz2ta5U1dTPC+ZJkRs7RclVWKkDldEBjXMnoqAeRs9X4+8FpFwUhcoZGUu5Up0gAIJAJIB7F9jxR+S7vFJbZxIAxAar1ckIZxjY47Bna5xvuX7hDVWIhHNdwioxvC/Gs3j8AvurIgTvl9yglu+ibPYPXE3V2D3erecSMoi+4lnCgKT4Ykj7QDZ+OVCvJJGty/8D/GErPGTP75ejwX+79tBgSGJ2eWvxbHaCoVik+71BDsFnPa5HOcqkd3+5XJqfelW54U84BCzSEjxQC/0zxofNA2f5vxrT31ET293hwu6hwIVHm1E7M7VY8AKBVWBfmxqaxqcNanv7Iie/8ATUnFVQ+Ov9tQc+TXj4rx/pqrVdNGmmjTTRppo0011FT9eOV4VEX9E+f39vf9f+P0515Sl6YKCajdhXnl1Q/HY6Hmj3r5I7Bvyyq3fYUk9j8dnsjvofga19fxJ8daLeO+lwq4EqzsKHGrAKzOiVxiyY7Y6gkq5r/Tl+nT+qI6t5UYkH2RE9uSvrXER6myFUcDLg485e6MjTARonigeSMgHZBNnphfXf0Lnmb03jI8sawJl5ePKRXuIImWVbJNm0kVh+VPEEsCBAtvSevwqNj9jkUWLJkUUq4y58V5XS44RCLIkxq6OV3pEcc7Po4ksvYYQCbNkOekeLwSAeiPT2R6i9SY+Dj1HhMBNniSV4EaJRTQs8RFmgSQORohbXlY2V699S4npr0rvG9ZCF5MeAJgzrDHPkjLmHHEkUSWpiSQ3KhALKOjY7hD3Y8udws5z2YaLm1riVFd3sGphHoUnBNEpBih01fIhR4hoxgCZXBZ2pK9AxJUhXkcNTSDTSd57Tte3bbh4GDh4q4+NiY4w4B7UWTNFGzLIZHy5YzLNRv2+ZJj6HLoX+XO9+ot73rctxz8/dZppcvK/V5YMs+LA05BUqmPFIIoIgpA+wLyNjgDd32+WH4rsZlVebMcU3G3HjZRHnzsYts7zrINs1zymrpB4FvcRqjCaKuJTijWABOlQp+ZXxIZ1ZDNLIhiuTOS+zB+9GePsiV5ipIUMPtjjVeyPg2BXjvrGorkxuqxsr/EB90lQeyZHfkACex3XZIuqxG89J45Y5t/iO921+5u7m1lZuDjmY0uN4THQ5rJNwcFSKyZMlTsrvr/ACWxwizs7AOLmnU01BQp8CVNZIKQM6AX6mTHaOOctIBJEDEg5lZAL6dJQylOvvDAFh3fWsnjxNySRJnUo1KBIycGF98vJAANAWf/AGDTdiPIHJ5OUjxvObmRfV1uUYoRrIs+acU4auDBSIyRII2IoWzJ81Si6TZfd8aSUowxhAi+9bJj71iTwmGKLJ9mU4pgiSKOGQDkJAEVFLEA/cwWrqz51sv0n6iy9j3bGml3HKfGnliTPWWU5KviXUiRI91LzZSCqkEKRxAq5PdvZ1iB/JZcVJILSFGQIZvYgUOioMzGpy5gCOcb1C8K5hhtQnKuV2tEyrNGI0BNs7xOCtENHYcDkAACFaRj3a2QSRrr/GEWWrZTKZP6Kyq4WOMGOQD2FVQbvgyg2AbBsDoa+gn+FLhsfEPBnZYIAqP89jZJlJuH+ohS3WRz+x+6L2ckhIqEaruFc33X2Vutyem43x9ixFC9yK0hHyFdmIb/AEAFHvrqr1zF64yDleqdxlsD2ZRCoU2PsjVSCbI6NggdfgVqR/41IR4H/X+/z/11FPGjVdNGmmjTTRppo000aob+Kv8AnTUP/wCIPhZZO5uN2RF9Ksy3A/yUBXsV4GZRQWtgWKwvCIjFlU9qZoeVR73x3NErnIjH8tfX6BYs/aMg0hnwJU5gVymx8hZIUZvxwBv4JAF9C+m/oVlI+1bxi8TJJibhFlceVcMaaARzMAPPF47Pirv+BrI+YONXxKWrxKqx4V9Z5NdZFgbLCTevqX07J9PKlxTjjuobhk2QQ1RPqogjOac8+xgxwD5UipjfoHi4O5bwcnI98blt8WRNFCs5jhmx5yI5GmhHUirYIs0aAvo6v/8AiB3DMwvTK4cUeK20bs8QyZGx8iWeObGo4/tShuCGUfYGFgkdAjrUKGUeG9uKvh3kyNdkqgR5Vk5yGw/I6uZDq6vOrK0EKfSZHRBnDiQ9ts5Ui09gb7qRYsIkuXKhCl9hCCVYwDLK/l+KcbREs0AWBPHzx80Pnqvz4OK0bZgdWVZXIJriV5OwoqSWFC7HkHl0AO8Lk2SY/i2F0Yd181zrJsALFlysJxPOcfHlNYxYZoNXPvdu5P8A5EqsoC8Jmgp7y2x9koJFgSK+e+U6onLFuPcAjX3mmcSFQv2KTxNDsFgFAuvJFmj2RrxglSOo43JRWKcSG7NjwGA66oV/FWL0ku5+G2W4WRCxutDcQZ0D+DMIrY6YpWSpsX+NMfdluBYBilpMyqJimOtvaGQt5AxvFKSnkO+uPLyKykSZ5XG+mj5cUIlh4kJEjBVpShPgMaA+D/I6qjrPLOGRIyVjX7iD2hYqCwAAHzVEHx3fjSOVWy9pgtjj+cxqXIruDEiUOZVko0jH1qretsI7rGCkVaMNrPQ7nQ7OBZB5+ooJlLfRrcUMkBEkebYYlgcyNMVmgkKET+2Qw+1Sxok/aWofgH8WMjiZMqPiyxKshRosni6ozyIjsPb+5lCkkjkCelNn4JkdxSts3R8dyFtWuPFv3QGya4U+RcRxTC1yWxQsnS4UQkwMQskcQRFiNA90UhBNeN6Imgd4ONDl7hHio/s40hWMyPzlMrxkPTE/tvslu/jo2Ndz+ljn5u04E+eYVzMrHiE0eOgEcaMQ8XglTxjUWw6Buj419NPxNxRuD+M2wmKfTpFLS7RbfR5QEG4SjnGxmunT2uG5EVj0my5HqNX3QnfnhV41t7aojDt2DGa+3Ex7r/6jGrMf9zrmDe5hkbxukoJYPn5RDEVaiZlU+T2QO778WNOE1kNYvRppo000aaaNNNGmmjTTTDvP3byxzjaA56SS+BeUJm3NTZNY9yQZtbJizQmcrOXNG5w3IZeFRokfz9quRdA/8QG0vn+l4cyOIyy7dkrOoS+RTyy2ASAB32Pk18a3f9Cd5x9s9WNjZZ/8PuUP6aWyAAv3chRPd9EHogihetbjf2kr96cQyLGYlbXUe6dJd0N3e0eVV8tkSeSMRkh+S4ueNIgTSV7rITptfOgymPBKa6FIR8eQqO5Y9G+sdy9I5zbtt5EeW0Ei8iOSnHd+Rh4MR4ooWJAB+7ib11Z6m9EbV6gxYNs33H/W7DkPK+O+PMwaGaJrxVnIJWP93fYsKtA21MH3J8MrPIsKxO18a8jpqyqqqiuZKoXRbyipyWlDKvGgDTFh2IUpYjrbIMgMkaymhpIjre4YgJIracIvUvon69bfueOMTf8ABy0zo5uP6+DDdsFInBKvNMCBEK6+9QCb7s3rif6qf8O257duWRmemcnAhx25VtWVnH9ZJIGaRfaRhydCCocCyFP29XqKHeHYHeChoSYhmOz2ZTjRY06U3H0g7k3lKSdYvHJsUx64rcmKWopLSXCgSVLGDThktas0lWx5DMlb8wt82fPxopo82GSGVRIrI8atRHMKOUqhbCiiR0SQfk65Jy9u9VbPmT7fn7JlJNHkFSfZlIbuuUHtxSAobpWYryHlbFmqh2D8it2iqzGcRzAUo56ll1kOYtyWmxytiU9QymrZcl58rfKfcVVUEFTSPIGHYJWCdXw7D7RQJLdPUG24Mb5L5fuSIgb2w8RkRGFqiqHbkzhjxKnuj+DrO7Lsfqrfc6HBxdoyllkkMay5ELxQK6gF0kkIpaWwWAYoemHwXG1ngVLwrFrgeRUdBnWXgJGdPdBp7CPTx6ewGSxl10Kt/NIsIozSiOtZbpdcJDvIJkqMc40kk0v6l+qe5PlxLtUORjYsECQ5L5Maxhg3L+qpjZmVbsCx8+ao661+nn0j2eDEkf1O+NuGbkSMIIvcb2IkUpyU2y3xYX0QpAurvT3NrtjJ1pL2dxebVjmzs83Kp6sQDiQJeJDq4YfQY1rWsZ/7CK5wmsGgmqxGdeU1D8XOm3Z8Sdr9zOy1WRB/nLyLCAD0QApMgB8hSOvnd8qY2w4O5S4oWLHwtsl9tFktIuMTrGFLWRyIJF2bF31r6CtbDDXwYtfHb1jwY4IQG+3sGIFkYSLwiN5QYmpwiIifHCca6XhXhGsYuowsYsAWEULdDxdXXx4HWuM2cyO0hJJdmYkmzbMxIJ+SL7b567/F9r1186NNNGmmjTTRppo000aaa8RnlWy3x+yhEEMzDQ5QnjK1HjckiMUSMVruUXu5Gs44+Xov9Fjnqbbo902jcsKQoeeJK4VwKDAEBiTfi/tB6BF/FjJ7LnNt26YOUpZSmXAoK2P3MASaokVY/HkE9itXr8TraG02iwXAd06GZJBdYtkT6E8kavWSTHr9XS4cLlF7kDBl91eNEQKMIZ/VVVUTh71l6BX0vJt5lyeUOb+pQc2VVWQktEnIXQLHj47Xr4F/oB9G/WcHqjK3HZZYPdSQJlAAMUVsFVR5ST/5fueONAEgACyaS3w4k4FubjLcZS9nVV3HkHSol1spK50y1nQTT7WBE7oV7ZARmK8fcTSqxp3wpAVcbvd/RveIdo9SZ+xbkMZsrcoESDDzR7keZJFO4VoRyEaFEBFANy/zCzqL/wDEb6NzNyxcTcsaTMxIcDLychsnbmVMjBhEYiRZJGDFlJJI5AcSQt8a04GX4zS6YkdkHdDcZ8CFPWxsqi5l12RRrQ0iyk2MsE+TNgsnR4cv6j0Pp68sQcQQxMjemJSAd2HM2Nn4ntT7NhxlYlVDDjiBFAIp/sIFkX3X/TrXEGH6TzNtzTkY3qrdmgmcySjJy48lpS4KsA0qMwQghQsbAL/lIoDSX2HirGk1bq+dm2fzpQba2s4FuK5FXXMGJbLXqaqDPjxVMkPvBe5xXL9QR0+azsCK6PEBcQyklzHt+3K0kWPEI3xVlWNcdCqMvOz7gNlyWIPjrXo/p2NIRFLvW6n2XyHgkg3B43hOXJykEZRRyAoAe5ybiWI7OvLX21AsL2yySJWo+S6rgzA/V2kksuZJY3lUdMlkT1ZLnEKiOVGon3PRGoqqmoR6r2pJdn3XcP02PHkuscU7IhjVsdSwJVQaDKT1Qquj51tb0ZPDibnte2JJPNjA1/WmeWRF4tZLsbt75WfJ7FGqVjxN2gtcs8rPH2NMiukxMHnxMjkF9FGgWTHrWWp1VrURVEKMJVR7U6sL6Kc9uG6tNg2Zl3P07AMfisSxbhK1UF4R3F3dEEMGZfPnlqS+pd3SD096mcuo/VSx4cCXb8Q7KW49k2PsP9z1rarGnDeFRUXlfn+vv/nHt7e2t3qbAPf3DlRrq+666ofFa5zAr8eTdAAd9+B46rVeq6ro000aaaNNNGmmjTTRpprHWQfWiSmoxr3KFeGK7qrnM+5rVVPdvLkTlU/T499eEypIGicqBLFJGbH7lZaYX8eAQfyBdjrQUrK46KurE/H22QT/AG8CvydRUedO3NjmGJVboeMw82jYZkMHJFxybJSIzIq00GdXFgmMRhBMNHZKYeOVRFahRJ6g2uepE5E/4idqys3asOLEj9w7JuOHmZCIXj/U4cqtGQjpTe7G9MBypjfJTrpn6D79i7NumS2TuAwY9723Nwo8oxPO2JPBMuQpCxhuBnUEH9pAIvojWtvuXJvvF+3t7ZmHMqM3uJuIZlh1XiwZRquBFr74NhLrhq2PzJtIceKWDZsEhHv+qcRyPjvTjnfats3bF9SbNmSV+riixc/bmVy8qzSyGVVZgebCQKQ6sSpskj4HZxytp9a7JLifrhNt8bZ20bm+RDHFNke7EpgnKuQI4ebDhMQACeiKGp3NptysE332yxndHDbKESuySsCeZC7sZLqbMDEZZUlgHt3jzauV3ArDI1SCQR2cjMxV/Rz0vuGDvu04m5Yc0chyIUfLUsrNHmFFSaCOMHkkKuppn5MACCTyofmr652LO9Ieodx2DPhmRsWYpiu0bCOePl7glTIVfbkBjfyCQfN6wmSEq4iv7z4wk4XlFIFvKIqqqc8qvvwnsie68KqcIq6ywQRSjg4UUxpVssKIJ77/AHd9XXZFDUaEvvIo4MzB1q7JHd/AP4rq/BP8abZnNxW2dBYVdcE9ga1KkICtju+mUz5YkY4hHsYFA9RPcrnqvZPZqd3e8Z9SCOfa8jGZiRlypicSwAZ5GV+zYsEAno/FUSNS7088kO7x5PE1jwzSmya9sKpZRVdE9k9VVm66kK8DcCM7dO9zE7Rp+QYTHrysYNzAx5WRmCGEIbnNQhCrAqJRTKqN4G8fViNVrlkG3YawjFZgGZMWOAGgGFRhGF0LoBbvvs/PWsLvme02OcfkxDZkkjAsTa2Xi82b+6l89jydS7NThE/TWdAoVdgAAfwAAAP58aiQUKKAoWT/AKns6q1XVdGmmjTTRppo000aaaNNNdRkb0eq8/ciNXhOV+5Ub7Jynv7/AL//AGhANdA0bFiwD2PH9iR/roTY4nwB/wC9/PnTR9x0g5XU3bqCfAlmrn2dVOj8qcCWNNJNFmxisRyEEaLKCoTuYjka9rkVrnNVdao+oOzjdsDcPZChooSHRRR9zGHNmofcTQXz2xHkVepr6O3BtszcdGYos8odSSVpWILOD4silJNkgUbHWmPR6isnzMctLzE4k09bYSkjSiRodsIBOSgcWL6rfUCT7lVVUfdqKqJy331p70jteLJn7BuWThCTIxsqbGdWVGjZI1tVPIdEcmZEo8SSRVEja+/b5mYeJukGFuM0Iy8JZJPbkkRnT3eTLJxItW/DWPBIIAGkm222B262QyXde5xuXd/lO4t+HIP4Vl1yMpsdmcyTSlpRAjt6tmGlPUiPRqsYEAm92ja7W6PR3o/F9L7l6jy8PPzJsXdcmKaDDmjEWNhwygvMMeiA7JIxHELZ5HoEA6gnrn6h7j6z2f03gZu34hz9ixWw33SFzLNuMJoQzTq3cbxIBGQaDUOgO9W+UWGNMIf6erkne1HfaGtcxydueeXFaIbUcjPtd2Vfdeq+/vNykBJIaTmBy8MKHjvrx3fjlfY771r+AZKBWZgKNfAPKzXQN0SfnqvPgDTccosZ9lMpYcWMlTHddAKpjOGSSv0bHHeNgBf6LEIiInZ73In83Vyt6rFN6Ecsm3Yg7EufDIpAYLyjLGiQBV9dmiRqbbI8iJnTuQQmBKrWQy/fxoksw4gC/ArwaBIOplfAGNS2G2+U5bRWcS2hWmYTsdfLimWSj5+FKWouWPlt/wBMxI9wWXAI0auYI1eYbXcJ1bPsUgwIQbDWQfJI5EefPRBFHx+NQbcVdMplctarGRd/jkDVDo3fitP4176sdGmmjTTRppo000aaaNNNGmmqXtR7VYvw5OF/2/8AunnTUbnlFsLvvVX9ju74xHiX02z9Que7K3FkOjh5XLekcR8twa+KSPCo8vkRQcXNbYvFWZIQAJSSo1gshk+Hb9s2ZMcjL29FnfIj9nJ2+SZoEnj8NJDMOLRTnoUKLBQQeuOphsG7bWqJhbyrwJC7SYW6QQjImxHIP9ObHr+vAW7B+4xmlAIZQIt3efOO7XyLbHd7cVzraa6oLBD2lRudhFvjs+Gh3PR7h2rBDqrILnsc4MivbLLIEnd4BuX79a7PgHZ2kbIw82ODByzlyQZCvySRk4yVIAbZVBAYH76U1y61OdzxG3aNJMHcMKdczCECGNwFdxIOKlP3LyA+5GFoxI+Br3h/O7x3yLHo2Q0u4+3tqCe/02wY+a1ArBj2EQTlPDm/RyBMYrvUe9RuaNjXdl7o5E2Zt254GTEMiCUSRuykJPIiSoGIA+1yvkdEg2ezRvWtdx2fdcSUxTYskJjFNJHHL7UnY4nkFYUK6ro/5Vvy1bdb8QPYTFKslmTPMEI88h8KFAr7iwyO2nzGuVjQQ6ajqzWEsndHIjYzDuI1rkB3RFXWUl3DBRJGGTEGYjjEsquz38FVawfJF32a86t8bb8uSRY2x5Cr9GbjwVbv7uTKKI81R/NfBbztrt5+I7+Idm1ZH2A29t/H/YlbCO+w8jN68IssQpI9UrihsLHbzBLp8PLdyLdwEKKrhHh1lMKaoi3FpWR07GxEUWbuWR7ywiCGMM+PJMK9ubkAHQd/uX8g3ZNVqWzy7TsWKkYyf1mYQEmxonDxSxEWyZJFAUQnDifIPyxOttnxV8csE8TNhtvtgNuUsjY3gNZJAtxeHSVkGU39xYy77LMxyGSxGiNe5Zk9na39okdg4gJU98aEIUQIRMlWNEkEYhQNUfkt/mZvudh/BayKq7uu71A8rJkzMiXJlrnK10OgigAIgH4QCh468i7JcPq41b6NCaBP4701Srmp8r/nt8fv888fPHxoO+x8i/x/PzqhYKLJof7/AMfGhHtVeEVFX9v+/wC3t8/76EUAT4JoH+fxoGBJAu1q7BA+7sdnz4N/j+91VpqujTTRppo000aaaF+F9ufb4/f+mn9tNePyjBMPzaA+qzLFMby2rIIgSVuS0dVfQHjK1WEF9LbRZYmsexermsRiL7/vzrxeISCnWNlew4KX9vZ4ddG+xdd3fR1VHkicSQvLG8faFH4mzVkMKYEd0QR0PBJFNAsPwxfw9rS5NkM3wu8b33ckqmPbB2rxaHPKRzuz/UkQ4QCPa9fd7Fd6b147NdwmsbJs22yMrPt+I9G6MTB+x55dKfPd+dX67xuwUqM/KANEq87yXR6H3Ej/AK1XXfjS64T4w+PO3DxvwTYzafEiAQaAkUeCY3ElCQSo4aCkpXuMJBuRFYo3tc1UTqqauYduwoW5R4mPEB0AsKcvwLNkCvgjsfxq1ly8ua/cmndiey0p4iz2QoJqvgddj8aXIIGCVVRPuVGt7Ocr3q1vbhqudy7qnZeGovVvw1ET5vySa8AKKCqABX8gf9/z8C1VSp7JYk9sTZruhR+P7HvydXGmvTRppql6qjVVvHPHtyqonK+ycqiKqJzxyvC8JyvC8caob+BZ+B/38/gdWerHnQ//AJ+CR0LN18V50wAfl1uTWX2U0mUeOm45GxbizrsQn4jjWVWtZNHCQ8eKfJrGXRAbXRZc8Ct/MauPPA2ucOxG0zZIQuiq7/lRyTrkbJlu5eRcdoY5ni4oRGDMwiLRXP8AaLDBoSJ1LA8NdEyfRT0xlY2z5mzfVP0mImxMWXfIt4ztrxc2CSeE58/+EYsO5MubJj7f0mPJkRO+5sm1ySRyl5I1v2W8hK3dunxewTE8wx6xvn28CZBm43durqW2x5TRbmDZXR62FGgkDaQ58AEeagZaljNFJBGlFSMmT2veItwhh44+TjmT3AqPBKFVoSVmSR2RRGUkEii7DcaJVujA/X30s3L0Jum64k29entzxttXDyIp8TecL9TuOBuoTJ2rOwtuTJnny4sjbZsXKklhvHjTIIjknSISv//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAIDAAMBAQEAAAAAAAAAAAcIBgkKAQMEBQIL/8QANhAAAQQBAwMDAwEGBQUAAAAAAwECBAUGAAcRCBIhExQxCRUiQRYjMlFhkQokgbHwM0JScsH/xAAdAQEAAgIDAQEAAAAAAAAAAAAABgcFCAEDBAIJ/8QAPREAAgICAQMDAwMBBQUHBQAAAQIDBAURAAYSIQcTMRQiQSMyUQgVM2GBkRZxocHwJDRCQ1Lh8VNigsLR/9oADAMBAAIRAxEAPwDv40440440440440456jGFHEQxiMEIQ3lIQjkYxgxNV5CPe5Ua1jGornucqI1qK5VREVdfEkiRI0kjrHGis7yOwVERAWd3YkBVRQWZiQAASechWYhVUszEKqqNszMdKqj8sxIAH5JA5Q/dvrpxvbS6wsEfCMoyHHcg3GpMJt8lgVhyxKWDcwLOQzI5SK4A4FOhoghxbCYZ4pj2mhCA2eSOJdej/UHg7eZs08bjLNjE03CTZieVa31aCZY5JMZTO3nQIXkgMzxtZALIixq5Fm1PTDJzUWmnu1obzVnnioqrSFWVGKxzyqSEcSKI5gqsIWIBZ+5SZZ2x3yHmd9eWFzc0lFiJqKsucVrpQxRp7okt7jTLG2t3zzRWujRi1oiV/oQywTSzNluI9QsF7/TL1VyHW3UPVcWThgw+Ix8NSxgak0JSzJjpHdXyFy6z+33SD22aHtRYPc13N2FmxfU/SdfBUMU1Z5bl2xLYgyUiN3xR24iAtWCFU7/B7wXJYOUDDtVtczHKd+sAxPLgYZYWbX2y40bMrAgHBdAqsZBZRah1hMluMjXGLPmxhx4MVp5JQvWU5BgRjizvPepHTHT15cbbt+/dWNJ7ENTtm+kquO4TzMGCEhSj+xE0k5SaM9gVgxxGN6UzWUrfV163ZA0300Lz90f1FghiscI7Wcg9rD3XjSHuUqZAd6lOjv6fJKqDdUdnCtauyA2TBnwZDDxZQHKrWlAViq0jOUVqqnKI5FavlFTUvxuTo5alXyOPsxWadqNZYJomJV0YbAIZUdXA/cjIrr+V8jmDt1bNGxLUuQvWswOY5YZNBkZfnyPDD8hh4I8+OfsfPxr386Ad+RxpxxpxxpxxpxxpxxpxxpxxpxxpxyB998osYWLScZx2qkXV/koFgNiRiIF0avklHHnSyyXuYGMgQEcfvORrFCIvCPVzGuoT1560y2E6eHTXS+EsdQ9R9T+3R+igk+mFTEWLUVTJZJ7TFYojVglkmHusqe3DN+5iqmedA4epdya5TKXEx+NxTNZMskfvGa5DG0taqIF3JIJpFSMiMFu500NbI5iOr9+++5XWCHow2YLh1Dh1/jG3+c7rbr5PD27zmjw/Hau8nLY3iYvbwcizWszeNXOLH22xlJWI45OLfWmQnSSUVhIj0rR6a6OwHTzXMhkXtNVuipNZqmxSWcxxxogEwmihajFL397qWlKRB5IQ8qpy3qeWzElhLBptGkkMpqQyS98kbuzM6FFIJkP7ZCYygYiMSMQ/Z0GbU7b4LSbMZrV4IOFj65pKyYU/IoUGFMurO9nVzIAMstBTEJEtboBxQbN8U4m1kt8EUVsQQHINLO9P7WLyHQ1++PZepPcyGGjiT2vempwKI0ViWSJzLJLLZMZZYSCI4+xFVVrrqRMhD1NVWXu+phgqXg59xYYpDK0sgQICwiVUWDuU+7+6SRmZjrWBsj0q9Q9nT40Dr3yvbLMibQNq37S3Gx8TdTbOzn2VJMLXCs8wu52ZWYcuiZDjIa88vGH1MCnizhn7xyjVcEkSCdRQdPYjGTWa+NerKKpqRy5K0slqWD9KKOCsa8ZZHQREe4Yx3wdqxtGihTLKF6/auFKl3ujldZ544a6NBHKySSPKI7G+z9SR1UB3cuTIUZpPM/VdvvDi260W1203Il0ey8LbfJYszbyRKCyRUbgy8+oLiDcRMfmR59bPpZGNxLOjG6MyCLH4S+1iQRPs0Nqr6Hqh1ZQxt2r0x1JZrWal9cimPaKssSUVH6rdgjQWK6yMDO0aoyqmrAZOxxJpOl+nrxQ5zEx2ZrHtxHIJLZBk/SdVjkYuzwTll2q+7L7hOomZ4yDsZ2B3xHuvCuK20FFiZVjRmisgQlX20uIRBLHsBhVxHw3O9UbTxCEerFIIrFQZUazbX0W9VJPUXFWoMrXgp9Q4og24q2xXu03kaKHIQRN3PAHkVopYGZgjrtGKNpaZ9QOiv9krdearLLPir/d7DTDc1WdR3vUmcBRJqPUkcoRSynTgMu2sXq7eV9xpxxpxxpxxpxxpxxpxz0yTsjANIe0j2AG8rmBEQ5noxquVggha8piuRO0QRMeUr1aMbXPc1q/EkixxvIxAVFLMSfGh5Otb2T8Afk6H54GyQACST8DW/nyfJA0PkkkADyTyFNtt+9t988KibgbL5njWdYjYge+PfVk55I0U7HyAGg20NRisaq2gyokuFZ01jGi2lXOhyoM+LHlgIFIrPn5pS701gSBAxeeyxPtBUDFnhjPfvtYN2nXyv3kMOZU414JPZtLKtgkBYEAUuC2j2ynvXt2CBMgkQ6bQ3ojXlvn1T2G027GfbbZHU0tpc22EhzbB7qsr7YVneYlYFmVM9ciHKkSRx241lMUEOwdjxAU4oMmpkmDFl2AlXTP+oL1lzHQmWpVT0/lc5jM5j4qkebx9YzRG9NLLGcbJUrKZacy1WWSDUpFoI0SOkkUrLc/QPR9XLUnttbjpTUrx9ynI66SOOOJ/fSRyDLHKzHuZ1/ROkLKp0tXNopeAS7bcHc2rwaNRWm8ljEl5RcPFFPb5hCw+tBjdLkZLSI0zXR1gMSNWejNlAjxYcPlseU+YN2u9jq+xPCtW8ck+KlpgR08nRv0rNWuzNK1Vq9oK9eaKVmJk7TtzGzu+lU2icYqhEhliMteXvjkjaGVDM4AJ70ZhIGVVB2ftG9BfnlqMQya4g48/HMMkhvLCTbSHirbyb9pkVUA4GKhQEeAjbuf6o/UfFYsAximRwO5OWJkuluo8vTwljB9IW62Wu2co8kOMy9hqLU6lhIy0sE/ZIL9xShKV3arJM43C7a1z5v06T24rmWrTVokqxxy3KirOJpFYnsmi7g9WAhipmCyIFJZio8j+rieORWsqc6JdDnPB7cvMuTAeBzi96uHHVhgdo1Rqo4zvKtRqub3dmstbvNboriusf7VivuojKySzVRFI34rp7UimNQFaPuZg3avd4888EcISw1vELSeuHLjtWKcMv7QHfvVz3A9ukXYHgeQDytMyDaYTfwriTmtE4IbJtni8q4IP2ljIqyJJaNySWEjjtYKPa4kVSKTtL7qGR4XNJrXjIWutPT/OtlXzkT0q84mwWYDK9G4gZg1C/wC5GIY7SozR2aEkrJaSSSSuZ4nIFl4+HDdQ0HotUZJpomiu0VXsniVlGrUDISXj7wrJZi/uZFAk9t1UNsl6PM9263Aj5PkWMSqFt3xAqsgr6UIWw62bF9R50HMCUgDisZDSTQiRoTRmr7cw3oIRXfpJ/TD1Z0r1cvUGcxmPrYLqCzXxiZjA1qoggxg9osslS0JpFsU8lYSW7AGSvLEXMDRPGkU8mtHrBhc/gf7HxmQnmvY2FrcuPyE0gaa0GKKonhCIYrFWIxwSOe9JvtmicM0sYvRz/wA/5/vrbzYHydco/jTjjTjjTjjTjjTjnrK5zBvexqOc1quRqqje5UTnjuXw3+qqionyuuuVyiFgvfoE9vxvQOhvzrZ0N6Ov45yoBIBOgSAT/hykGbdVtXtqDOT72nptnYeN2F9No35FkWNzA5XgtY8foZslgGRGg45XJyYk6ltZK5DVRAAl2QwgmgO6gusfUy3gLLUbnvU57PdDjsXUxFm/aycs8skNWFLKQiBW7l94ojSTTJ2+3H7fuSLZWD6JbL1luUYTdrQydl661lK0NIxRxSzPJFIwlWMrL7cc0yRQe6rKHaXtjOGQrOUysxyp26pavE8NIeZeWZsOi41jlDObZEfbv9lRVNUMNkuQWc9LGxvIMeqUohynyrExzljyqmv9Z9Q5VErRSSUoVldZ4qipGkvaB9jKrd3aGbZkjbSdjxE+dCS1sBjsfJJLMDPOqIqmw0ksgJbyCXCGNkHwCp9wSBgNDZr/ANWPRvgHXFszbbIZ5kWRYpkdK9+Tbdbi4tMPDyrFrwongnIwwZMUl5jF1Ac+pyjD7OR9myGtcBswfuYEKQD19MZKUT2MXJYimsxRGzX+qhWYTFmDzIHc+4NEK0bIyPHIEdSO3nsnP0UlXLJX3X932rUSHtUeCsbaBKLIpJ2xR1cbSRe2Qg/ibX7E7mUcLFNscxoaqu2t2syPGoODrtwKdgMMdTj2FzYjQWVDAqWeric63kyUk1NhbNrZxpVZMQUqygxpcvE3+nLjrYN3WQqyu6zLbgiFiIvIZCyTyMSY3YQkS9sc7baAExu5PoTM05JBLU7qtllk12sXjYkhfb7WcASxp3lSFYKAABoDU6PwHCaeW6OAi08JlfXRKSujRYYBU06JLnHl2gbBGfd5sm1fOAKZHs7KTCj/AG+OWBHiyJE4kuC3MH0nNN2zVEoXAI3r34YlrzRyqFbYKOoZQwLdvbogksSUQLn61vNxw9/vG1H3sJYZGaVZIyCAhVgdDt7t62vd4GxsHPMtx5uR4zXHtGMkkUHszzwsG9RFRvoxrFXO5VjXJ6aS07v3bu5f4F51Juo8UuX6ep2cmi2AkZrWLtdI3eNwDHXulhtkQaQWFVh2N8FQxXngxk4r5CzFW/TG/eigcle9Hb3Za+vgspL+2dASHwADyhdbmUCpuFrbuvOakPYHhWWP5JWuiFlggTpFeSS2DPGpIr0MEpaqco+SCeCXFK6NJT1NSZc/D05nmw/UNWOxjxMkWQw94QzRXqCsNSx6aQRyAOJK0qbeFyrd4+9GuOLFHI0Pq8dO0NloxJUvwNKjV5+3uKEgxswZv054vtWVAYzsdhFoKSLF2jLAywc2NGwu6PJdAg17iHrp8CdNlCp4qibDj99vOgMH91jja2NS2A5Yveljhjyj7W9O1cd6YNR6lw9oP0jmws9GKBFStYitEiKt7cKAtc9wSJOftiqvDLNNKkaa5VuSe11atrE5CN1zlFnhm99u6aBoVEk8yFtmOpGgSWvr/vAkVfb7iTzLcE6r25RkoIOAUt6XHFoa62ky7JZA6+PIsjSXRwObZNbGRWRxsfYRo0slmFXqqjUyDZq3+jfWfJ9V5bGQ9OYC/ewGQofUHKEOtatKs0qhnmdGhaEJCQyBhO7EeyXB1yIZ70xqYnETXctlKsN5bTQQV00ZZ1SNC/6MTGVX7nHbJIiQAA9/kEjYVi9yTIsdpb0tdNqSWtdGnErbISgnQnnGj3R5IlVVYRiqqcO4d28K5rXKrU2crStPXhmeJ4XkQO0Ug06FvOiPwD8qD5CkAgHY5R08IgnlhEiSiKRkWSNu5HCnQYMNh9j/AMSkqx8qSpBP72u/nVxpxxpxxpxzw5OWqnnyi/HKL/dPOuD8H/8Auv8Ar/l884Pwfz/z/wCv+POTb6wvV9u509dUFvtNa4bBzLp/z/BsckSMZ3Bx6pyTEbiHksB8PJUqR2haki1I7uvmBsahMiFHdMGcfthx2x2Jpx6q9U9W9Mdc5SlWtp/Y1jGY7JY/H5ehJbptK8bJdGMvQKbdINbVk7UDpFID7ZjRivNrvSPoCn1X0nSy9ENbzNXJXKWRShbFe/BEjo9RpoO8iTujcN7jQzCSNip7mR9xL0z/AFUSOmg28q4VEjqiKKCPD4dulAX7NXR0arcdx+8qR0xhxITRoBKfIbV0eM3tMNw2sM6rYPUatQxrZG90TGsNmQLM1fIll25JYiVpJJI2ZiSXnSJw57Ap5YeY9IbcszRPl78FuNVKLkKPv9vg6LPGkbui+ASqKTpdKFZd3Td9UPaaDexDMpc2xzJKtr/VrchtaF9aGPwnqnllr6+L2DIi/wCUb70jSfgjxsd5XBQ+qHRlu9XymIr5zEXq05gavfuxTVD49t1R0rJI52SEjaUgN9rMwPjHj0g6qWpZry2sNkqM0YJkrQzwWQSVKH255SI9N9rt2BgCSN9p7ZetPrPdJuN4pHvc4u7iqZIO6I59RQRLgnqCZyU7Y7MiCeQISdvqPC16iaiuQaonGrYperOAyrnFz0cmJGAWWxVx8lmIBx9omMcw7j/4h2sAFB350whWR9EursXCLyCqYGQvCk12FHb2yob29oSQpOy5DbGtb341IZB1I7Cbq9RVT1D0nW91Fyqaqz23vMQ20LheDx9vsZo7X2cWVh8WuNm1YsnH3UoJNf8AcbyPIugMuLQ6zfdy3vZisz1n0XXhnxVuN0WWt7MgbEWAx1JI0doybZjOHkDrECPuChQzKoMy6e9Nusb2PWWvjajBSO+wciqyu3278ewECBhr7Rodx/JAF+bz60PSbg9a+jZmOS5VKky3Ch1OK4rUWVh6bWIQzjmPmCRQQ1dxH949ZgilZ3BU/wCfbgcd1Zi6WNu4tH6impACY2pMIatUq3zDBPYl7ZZZNB5E9qVoz2SOi9oAk1D+n3rXNTxXY06fqOg7GNvOL3faCvuBErdzBf3KWaMEKR3bIBoN1AfWZ6MyWtUG7ot8LCddp2wJtXcYRi8KqG8qPJLlyrOnvyNCvtXwzhjsK1jCI4PaZRyIuBx/pp0V1hJk+oMr031TnGoQypBWs28bFGJrHss301eqIbIkRAPYV7PYgeZnXv8Ab7frK9KdX9JW8fiZc905Ta1YCT+zHkEEUaiRA0s8vagjLESHsj9zSxuVeFyTiFN9czbW5pB7W4FtHf3OOtnkmwYeXZla5xC9656NYWRDjV8cMkBXjYQccNhBGMnDg9j/AFHLJo7I6I6SPTuF6Aqx4WC2+RqUureoreThiuTaMs0i3JZPZhVgH+kTthjkLlEEjuzqnpqc/nVyN/q+xJkJKq07NnAYyvBI8Kk9gSaNdgkAoJwrOIW1rWlG7v6bO+Nt1IZgNs3EoWOVWP1TMot4lRWpBY6QNTVtRAtiPkWVlArWWK+vW01hb+paFgHMyKevhTebO9B+rM11fm2rT0cfWxWKqSS2U6eomtha1hQI6lQ2uxI5vuLSpXhZtmMmVFWJleufX3oLEdB9P1pksZCXJ5e1DXrNmrby5C3X7Vnt24abaKwpHGI5LTwqiiSMLIHkj5vVREanCJwif/fK+V8qqr5VV8qutvOagf8Auf8AM+Sf8z5PPOnHGnHGnHGnHGnHOcP/ABGezMDIen3b3eKtnWtHleJ5FMwuXa1QWSUditzXzcgRJkR4ipJHAuqcSsY5jxpGs7JHs7nseyh/XDA1bePw+YkrpNPTvGkwk2EerbR5CjMpV0ZZolaORW+w7Otnmxf9OfUMuM6kyOLZRJWt0TcVPcaORbNeSOANCVKhmMNhm7Dsl4o2GwrKeBy7zLLsdyOFNoMprpFlWkZLBYRQkxi1jzBOUamjjhPrTtL2J2vQIjctVzFXtRzFpaDprES05I7mOsJBMrRtH3m3XeMhWKFpllO1LEjboAzBlG1GtyZ+sckksYhyUcnthSkeRjX3Qd9qskrKWYFftfY02mAP5We8P68d48brX02W43g25gGzCTDyM0gJOtZyOe4jIcy9EFbKbBejhiNCnkOHiOFwXNejmurPOeg3R2atjIY7J9QdO2ZVCk4q00MULFe1p1qyssKTLolZIgCWciRXUjmXpdfxgOma6bxGYLFmjmhsWaLjtdmDq1KRYy5Le2WmgbSqOwgl9x5vj1nv3wx+kxXJ+nnamqrMamTLGtdXRJDnRp0pqB74bRJFcETRd7TMI+Sp2KjUYi8Ikm6D9F36Cu3r+K9SerLM2QSGGSG00Do0Me5O1yUl73Zj+my9hRz8lBoeTNdW9K9T1KmOuensbLQMrw+/n79hIpJQqFq0YSuyxKVDyxs0pfYCDegasSN+MuqoZKHG4gcXq5AvQ9ri1bFqWMY1qJxHe4ZyR3q7ucrxPYVHOV6ERV5S006CxFywL+SnfK2oX7/dyU0tpfkkB1Ro1dASB2f3Z/A3rkaHWUHT6tQw2Aq0oJUKKYg7yKSvaWiew8qxyeP3BdqPOgRyI4uS2tbafdGPuxyHnUxpBLOU853cq5zzvRWrJer1RUUj39zlVeP0SWWMbVtVPpX/ALPeMRBEiFSNQgI0ugw+3QA8ADQAGwdHmLxvWVmjeW0xyKI0jO4a13pKpOwrIpRWHjSg78bP88zK4ssjylRXUCplSAHkMFLkSYwuASkaquIw7xv49ZvLnI2Q1zlT8m/KriMXWo4pXx8trsZI++GOCRlR4Q/7HjGgQpOhtW18pr55l+scr/bkNTMY7GQyVR7dWT6+tE0tWVVOzHI5chH2d6kHnZ2RtuWZ6b8H3EzfKqKor5JIJSSxEkJFFKlyo0dpSK8kd4EL6fpRGFI9Gu7nq5UYvCaw+axuLusYBQa0JSU75trCR2gkMjKNjub8BgdEn+eYzE9YZvGxLLHfgx7RaLipGvuH7yoVZFBIZVGiWYbHht78/wClX9G7p2o9lul+PkYVt5mTbg2RUtre6Y4EiVTYvMnxaMMWE9XOgwVlT7mxaByqT3Fgd7u3v7G3h6ZdP1cF08prxhGuyNI4WIQokcLGOGOGMfEYHewZts5YM3aftGmvrb1ff6s6xla7O8y42EV43lnexM8lgJPO80zEguP041RAEiWPtHcSWO3TVj8p7jTjjTjjTjjTjjTjmrn6v+LsyfoxydrwIdtTmOE2JWKiLzENZkrJqfC8/wCXmqqp8KiceeeNVx6qwCbo+6dFjBNVmAA2RqQr3AHQ2O4+djQ35HLF9LbDVur6jq5jMlW5EHU+d+2JAAN+dNGp0dbG9HfOA/ejaHErAcWHUw6udeY7NPXXPBY0mZCFMQ86Ek0A09aJKcJ4xNG9WuaJjFciPJwuu0k13HUcdJJE9dLYI94u6pZCDYKj4IHcNa2G13Ekc2wp5v69nqs6yGr+NqwJY6J8hiCSPO/tGz8AndEM62gcQPZXRWgmMKrWuj+oEbhNK4aOcjFYx/d2uVHIicNRF45c1U92Py3tSj3iJImTYVtPpvxov/v+NjyPP457JoIZlUoCjeVZo2YDS/BPaV7jvZGgfk+BvkVXGx9wVXpBhWJCiErnESUdruGtaquRUcjexyq1jV+OF8O7lVVz1fqFE8SGJVJXx7a6I/boE+QfkaG12B4+dloVzJ9s8qns1sWXVgx/BVXHgn8FR8a34HMagbMZW9VcaktnljDJJGQUuQQrR8t7mMCwyMc57OXI9zXKzlF4RVcuvQnUdSef6WKeFBM6xuj14QrHfyze2W0G7dkHyPzrzzzZCiyVzacWJHrhnR1sSnw299kfeFJK7A0CAfnydc/ms2oureNYkLFsjvBaJVxIqulPesk5fThtKjE/ATCKiyjkX0xMY95HdjVXWQyuSr4mxVgE1RPcryTzykRKAsS7lUb3uQgj24/DE6+ORnHiW9HYlZbTEWBBBE7TB+9iQh3+1EG/1HJ7RokkDk44NsjdlkwoRRO9sJHEIN6leNysN2tc1VcrEcrWqqu4R3prwi+ETVe3eqaciWJoj7kj7ZJF7R2qvhgwHzpfjehsdwA8EzWDGXytaKSUtXi/fBIzvsH4aP5QEkKWHb3FCQx7h2nrH+mH0ZYzJyzGZVrUJNcDCMQ/dtjMHGHKnV4byWhyuG38vTumDa3hf3YlZzw1UWQ9M6yVuFlR5UapXde8Dy0yiQ93ggntkADfIKDYPIl1hkPoMe/Y4iLWJ+1R4IijLKqqi6390TEE+CWPgnXOz3BcarsPxKhxupjii11VXBjxgha1jGtcrjOVGtRE5c4iuVeEVVXzraDHQx16NaGIaSOJQBrR8jZ2PwSTvmmeTtSXMhctSsWead2ZixYnX2jZIG/CgfH+PMs17eeHjTjjTjjTjjTjjTjlIPqNVkix6Nd8XwxiNOq8aiXUERx+qF8yquq00f1R+EeNpHo8jVVGqNr0XxqLdaCL/ZrLPMvdFDXWeQBe4lIpkd9KP3HsDbHx5H4J3KOi3depsSEPa0k7wqdgaeWGRF8kgAEntPn4P55wv5DtJEwgk/3SSbnMMzlpf5bfGcjhmnueeWyHDEwY2ChRyWEhUc9qnkGXl71GwbW6c9bdWPl8jTq14VrYqggMMQH3s7qqB5GUnf6ahQg/Z40TzbHA480YpZ2BFmxsMdfCje/J+e5mJJP+XK8Zjg1JXxZl5kTi1GNwmzVk3Aa9JLo7I4CyP3kNkwJ0C5w2DWWqoEZZAhI8kiQKO7I9MYyznJXSKQw1ESQvdZC9eOSNe9Yv3RkNISFK9wbWh2ttSYx6hep2E9NcV9dkporVt5IfpcOlmOvetQPIyS2o1Y9y1qypI8kziNAUMe3kITkO4LlkHc23tqXZ/bnMt4JcCuiy7qfBjnxLHqSqIyKCFPyfIr51XX4aEc4UkMpmTlnVNhIMEdfbCmAfCbadbpTG+wsE8l3KSezthADTrKm/Ls3chiKkqFaSYkb7+0kFTqlmP6peorliX/ZDB1KYXtkM9mIZGdEIZTJNcnWCjFEHALk1yjBtLPruBuFhnTPvRn2F53lO3td007lS8AxexyTJNr9ut99sMv3PBQwIBpE2PYwsBwG2kR7RxAGWFWsnxJdiaL9ur3Gkncx2RqdBYSX3mr46oziMNJHFlmmtqqaZwAiOdtoEFWV5DvsOvtODg/qB9acwS6dRYC9FTT3pqNUYaxOvbvYEVfHAnYDpErThiQSnfrlRJtxhOG3eNU+7uJbgdPuTZtjtDmNPj+b4RkFY+xxjJ0lJjVrXR7KI80+hsTANzlsmwoosl0dSR8fCER3Nh/UXprRt2kmjy2Sx241aOpagNmuUkB7CJAI7HaSdlnldtbBKg7FjdO/1b5DBLHU6w6XrTyFEeKeo1nFW5klOkd45zZrOCNhJImpp52Ygv2md8MwHi6x6uEAj1vpVfBr1khQJCpaOh/upMcZDuhyo/vVFJjlf3J6anjOkwiRZcil7uGvYW+2MsRaLTNXrPLHJElxUkWP6iIH/AMuWNjoq7L3aXZJ5ut0j1ngOtun63UGFuVrMD0689utBYjnsYuzJXE8tG7oo8dqAlVZZUHuArJGGiYEdgn0+qSJX5BZMRoGshKyKJRqixhArhwaGMMD+OXMaOrVUc5yrz6q/wr4vvoNVa3L4EftBYkTyFVEZYVVW8aP6bEeSfOz45UfqFK4x6fJaTvJCj7gPvnPgEkECSPY+B8a8eN8IW9ghs8/gxjfPyna1qKnH6eU+P7eONbJxgBFUfhVGifI0oA3/AB4Hx/8AA1WJDM7Ak7Yk/wAA7J8f689uuzjjTjjTjjTjjTjjTjkCdUlImQ9Om9dZ6KyFJtpl0pI7eO861lSe2QI0XwpSLB7RIqo1SK1HKiLzrCdSQJZwOYhkOo3xtzvPxpVhZySfxrt/02fxzMYCVoc3ipE8MMhVCnW/uaVUHjY8Ev5/w+OcVGc4tMMYjXDIk2M3tAp3BUMh5hilI5CJ+QexznR3MKiKL0nva5zHpx+cOfsLA7w15JWlWX23UsC6nZZT36A7WUdut7VtAjwObt4wM4hMnYUftKnxpe860B8t2jR0CdE6+eabOsPL3ZHkDdvwxnxoNO2FYFVzXjMdrh2jIHqNarGkJKFYyplt6iPEpHVdUJpAUIJthsH01WXA4inSikMhmjjv25iwK2J7USsqKAe0Ikbr2qe0gBCwBQHn4xf1H+rGU609R8pKYvpKOKnsYfHVwnYyUMZbtRRLPtSWlsTSW7llnI7ZJo4UKpWBfJugncbZTbSo3M2p6sW7ti6dN2r7HMmnAwbbza/PqedmmF1lxVVWQyKncjbLOjyrfEB3yGDVUNhRrb09lchLIi28CoJOs3D36jQS1rvvfTWCjEQwwzqXjjZR3LNDJ3tHvalGUdveo0/aTjuhep8c+OsUs01uOhMUkVoKtWxB7tfv7Qy2K8ne0LyFwEkDENICyns3YHoMqN4ulPqmxjf6m3MyPItq8OOzNZmKdMM2+gXnVhExaNYWGG7RV20WLVtPZ1mJZLdGgmzGXnuL1u3e3tM29I+xubmHHq5/dhYbdHILYWaR4A/vt9KxD5BQrCCAQroqp+0ze8qQV07gHkHnmQ6ThyWG6kfKjITWcbsTRJjS4fKIm2r1mpwLHIqEkJM9mCOpWiaWR9OqJzVj1FZ5uxuRm4bPeHIquzsscbkNXRYrjV3Gyig26r77MMkz2wxqtuYEy4qpTC5NlNvZnSvvLoICTPt7JFaGvi0FVjcjcsWJWFmWPSM4CxssojEjtKI2aNmXw7EkIzaGlOtDkf6rzFvI2likmhaaJXH08U/vw14fd7zGZEYo8heR3ZfckZAQpPYoAvn9NW/m7hbhYbgM+I45sbv49o2SRxXDlBxrFbnJISTF4e4LY+M4FNpCuViqeRFxh7XNee4IsK6pxkN+rWyUzokmEkEzmQ6jkpeZHjZn2I3jMHfGQVJKkt4lOtrf6R/Uu3hs9d6KkjWXHdWRTR+6qAyV8pSx08tK2JEI/TerUelbRh7SIas0enSUt2/dD2Lira2iklYiWFq6OBx1dwyS+Rb2MyQrGIrmuews0zVc3hSDCj/COTiQ+nyw21q24pVkFqSMK+yFYe67t2htHwp2CPOhv41za/1FszQragYFUrwe4AVHeO+IKrMd+AdDSnQBb8b1zc3rYnmt3GnHGnHGnHGnHGnHGnHMYzWpbfYdldI5ve24xu+q1b4/JLGpmQlb5/8AJD8f668WSh+ox1+v/wDXpWof537sEif/ALc9FSX2LdWf49mxDLv+PbkV/wAefx+OcYm8VdZYtjWZZXX44mVTcWr5t0lDJnPq41lFqUmltROnCiS5XeCuinlCjx0EaY8CwQnFIkBe383aVTGZLPCrk3tRxz+5DCtdolee1EZDHFIzq7KZxGY1ZUeQz9qEdrkjZT1j646o9NvSrqXrzpLD4jPXulaIzVzH5WezBAcPVEcmStwNVaN3moRFrzVzIqS1oJv1EZVB1w5l0hmzvd2+ZlV1sCTNI8DZfJ72NT3u8mXxcQ293Y3g2i2qpcsvaK4yPCK10BqbzUeTw2mKxmVR8ZzWFHfFs62KW03Ep9LpWxtR7DUXjEFJFQGzIoqyvDDFL2yPED2iRWUlAXcTbP7OflevT1vqmZupc8uAkky8sOZ3AcnZkaLqC3BL9XuzNVSOt7mUWSJXIdo1kXtSRNy/m4/tI7Ec22/wicTYDGoW4FBcT7LIp+zVTjg6XNcNznfjC7La+e+VuURkvL7KTtHjwsWfdXtQgZe6+OHuwRKiO6ZZeV61elYiiryUKhkB271owgljmtxyVz3zofqO+ssaiVhH3ToXHZ4bDNBjsbkKVSC9iqKyxSL70lONY0t17OSrS0YzPdkU3Hlx8PtrJIF9y3GZfbjdGbFMMzfON0sR32oL/G9r4FbtjtJjGd4jtXk9Dj1rAy68u84wzGExmZUWGcw6KxbDqsjtMlY2spQXgItIV02vijacrMTDl7FqHIgJXSWtUiswVZ44D3tJNDCY5UEwVtBpHVY1EqxRt3jWjzAw9W5K/BmdrVhlxuLq5GpTnSmgtTy3qkP07p7kaiSKKzPa+2P3UjhBevAQ4El5T0nbX3Eyxxg1t0tU0YGf222VHmUbZWDX4pllm7FMZtcG3IhW+H56GVjWzGWZnk9VgVlmliewfh7rWDfyQ3CxLylq/XUgia8YXfFBTPLWVxRiWOY/TxSRXYGgnLR0p5ZY4mkcCSFijFpSJY4vbQmrzZmSnZyfT6oMpbxccjUu2G6FqVpKmQryVrismKs2rcVaS4ZGEDSRuTI5nrVcP2H2/wBxOkPOJG4lJtJh060NSWljLxqsv90586tR24uV9LzImXTSX+SYPi90TcibmlVT0rbi6EOVjsORLkQp8+opp/bmMOlvG3KdysjVLcBWYQPP3xqJ5KqMWdp68MgnMo0WlVQimRiZFjMwXrXP+iuUwXWHSmExmVv0sg4OMIybVJ69mS7gTFcmr2GhrCe7M8VZXsEPZjh7pFJiik7VujbDpsmVg91chHCmUGPjjLTwZR5NZXW1rFjWVyoTPDG977EiNqIck8IBVCwxvSCQr019+nOIggnqivJM1WgJa9QSjtbTrHJK7hNRMftMat2DaDQC7A5+ifVWczdvpmnL1JRoY3qXK0qVnOVMZLPPTp3WgX3adWe3uxPDC7srSusZeVXPb2hObTNXxymuNOONOONOONOONOONOOeHJynHz5Tx4+EVFX51wRsEfIPgj+Qfn/hvnB/1/H+vgf5fzzmU3T2lipaZLQ2UUpYUuxyujmNY0giOCeys68rGuErSDVgHleMjVcrFciuaq+F/M3qKKbp/qhLKRI0uOzl0gSLIFJr5CUCJ1jeKRUXtLdwdT8KdqQObZ38bQ676JyvS+Qab+zep+mZMRfFaVIbD08njVht+1M6SLFJLDKU7wjduy3bseNStD0zZTa7tbpUNjtpiFfj+JS3VlTuneycvzLKcmoo1fFi7fUd4PObfKxWFVjIgyYMANPGYCDGgU6RY8JsZGOveb1YwUWJhvzSR2shWqpBNja2nmr+2PYXvFiWVIxIyhoI5AQ6gMuweaudU/wBJfT2W6ckw3SKvhM8oxVKrm+ob2XzNM4zHdkT4+avJJZj9l60UXtPXrRSx20jk72UmM4TkvTFuXhUy0KEsDMKJ0Oar24zim2m3x4V9KaD1bywO7EZZHoMAiAf72ulzrqRIYQ6xQwkQuOwfX+Cy7SdmQSnKSFNW5WqY9u9wGEiTGJ4nABC/3qszabt0AG1P6n/pY9behJXsDHN1zhzCwFjpKvh1mrSCVXWWeucemQjcoHVl+hse5tS00YXteI6DBN47G9lD/Z3OLqpbHI0LJtnDAINiZtgNthIsH7MJT+25k1CECkhnr+1mp7xv3EaR5NPl61Z29zK0TGEDgHIY9ewakLP91YJoAoDttMVfubTqBXo9OvVh5REPTv1BtJKDHHC2LtxyJKGmAY2D0ssbIe6vtHjQt7UoMqiRe2asc6Ycxyol4PJ5uNUlLOqCshYjk+Abc5RMIFg1MGqm3sHFSzRiLYiNKhTWR/YyhSgnNDgTQHbqN2PUbp3FX4ZxYfIiGVXCUqNSRUR/taNrsiKrdxV2f2lffce0B9Hlt9G/0Z+svVmQiz99MT0fTgyEVunjepKWJt5VqcapJNBLBToTWkjkb3CJZJKroZUZoYiuzafpx6R6QWN1tdurj9APLLK7o8jC3AbHLMVq7CdisqHZQrOzxulyQOGT7OdlAf2klC/ZxR180rWMLJlRfek8OX9UpMzfr1enKEceJsmSSYXoZUmnlrzKzIiQ2IhF2l0cNqT9TRCBdDm49P8ApD9LrePrUsxTzdW9hp61yxPiepL9GMXYrEV+OxLVVmx8sT264KQLQjjWJQjL3lpD1gdO+Ltp8biSXiakgokIRWtRqqR7OFRPCKicuc7j4RFT9ERF2S6CqJDRrsUVWEXc2gAFLgAb2ASSB/Px8k753+oN/wCovyoGJJkIBYDZUN3MVI8duzv7dKT+1QpUcsvqx+Vzxpxxpxxpxxpxxpxxpxzw74Xzxrhvgn+PP+nn/lzg/wCf+Xz/ANf9DmsrePbBknMckNGAiul3dlNc1UThXTzLKIqJwvDXuKqoiIvnyqfKLpV6ldNK+eyyrGoaTJWZUbR12zuJmG/wDI3jXnZ+fzy/ekc+IcbRWVu5Uq14T2kDt9tWjA+QAdgEg78fxs8rHabFSmSMpkBAURrZwXj7GI9w1YAkdsgTSNUSPD6ikF/Ez1WNc5qp3NWll6Ut4q9lbwqNPJJZp2hVnSQxzrVdXCPsf3T6Ksq7HaW7fLb5Ysuar5TEnHC7LS+soZCgb9Vo1s1JLkMkEdmBu3+/rFxNAWIAlQEk8jOX085QSFYL9wnEmSq6OyrE+cjYhTx4UiOeNYsmCO+YGyU/Kulme6IUIZbXulI42rNwOcx6RtXv9KVQckI47dm7LFPPbRSoKySxww6ZlDnuhCMh0qjsQLylMt6Z9QWpKtmr6o5ym2B0+Gp4erPTx+M/7PJC4jry5O4bMchMTGO1NOA0X1DMtl3Jo7tvimejzbOcQsNm9y8Fbisd8eDldgekfimXR2ANHMan9hZy5EtwwSnRRksYaR3TYrrJYxZDocsOWzmW6GrY7Ky4injrFmfDSYqxjKzy98TBpWaYCeN3WZCyglgoPYrCTuJVcrH0b6gZT/Z6ve64zHvYnq9OoYsnbqqXmrmCKvLjGjrzV6zV2QWDA8jzRxG3JKlJJURjOcrAbsAmSWAmEaoo8ccV5FcZXetPkTjEIaOYzmTTTRgIJz0GGFFDGCwY+5ywAdRVJsTCmR6NhvWI68dZMlJaMdlu2mtZT2LEIkRZVayW7VdC5VXMpkmkmdb00z+NzM9vBeqWUxGJmyM+Uk6egoRy46OWzm7+VmQ2Jrf1Tr9HZgoLG8nsulVUnjMYEMdpun/ad9pYYikyG4lhUvsTOd+SiG6fMGiCRV57mtDHV3C8I1Sd3HdxrJdBYIWrGN3ETPAZmck/YxllCgj/APCPygH2FgpPzyddW5yOkuRmhZUjnWJWkXtVpBHHo+SNnRJbuIBZQp7VB1zd7iFQyop40dETuaNjXLwifwtRPHHwnz44T+Xnjld6OnqX0lGFGP3LGo+NbCnfxoEeTo/7vgc0/wA5dN6/LID9ncxUD4+4g+P58Afk/wDDmVakPMPxpxxpxxpxxpxxpxxpxzwqIqcL8L/p/tp88crRucMdblBjS471hWEePKZJY1SIMrUSOZDDa1XtE1w2r6zUc1rnq16M/i1r56jxpQ6hFiWJvYtwxWEnALqjhfakEqAFu33I1YSD7QWKMAe1uT3pt/eoiJHUSQyMntk6LqfvUKR+fuJOzvS+N/jDWQYU5vqxzBMitVqPY9pG9q/+qL/bwvPlf6Q0xV75M0csciklCY/OhoEpoA70dkqQQpPnyTySrYlhJDKdH7WUkKW8DtKsfGh/vJ+dfnfxScUHKUPcxj2jej28NaitVq8ovKInwqJ5/l8oqeF8FvDpMYh7SFY2Dp9gDBlPjtOtKSTvfnwGA+eZWtlmh26sysVCt92tD8b7R5HkgAfwR5B5h8naitmyJEg8IbDOe5yvRV7SIr+53qcc9y8ojl7l5/qnxqLDoeKe3JbsQGKUsCGQqVmQnZV1Dbbt8DRHg7A8Hkjj6seKFIo5dxr/ACvc6OASCv3fHzvQA2fO98+SVtfWo1znxgK5qcJyxqMTnjlV5RVTx8c88pyifC6y79PfphPIjUFVUKAAoPkAAAaA8KD/AI6AHOteorEhBDOQNnYZixO9/AAOv8PI8+fB3yT9ocRra+0e+OMTyC/haBqOVq/CuI5E7GIvnhHKirz+KedTz09wteK7qNY5WjZSFiQM67DMXkYdyIpJ1o6IPkDYHIp1hlpnqkOxVZV+53YjYIGlRTruJA8gA6H29w14uANvaxjeOO1qJ444+EVeOPH+v9NbKV1CxKB8geT43v8Ajf518cpViSxJ+SSTz+9d3OONOONOONOONOONOONOONOOQlvPVuPXV1qAcn3MKQ+P6sRGqYYJLFe5UYRFHI5ePhYxF7TN/FnBEb3VF6sUGnxtK/Ctgz0rLxB64BdI5072OmUowDoCUYEMCQD39gMn6YsLHalhkZAkyhtPshnTwvxoqwB2GU9yhfjt3yt8M7JRHOGGvtCsc5Cur5JKi2YreOVkwXuZyVqqncilGxOeeFRda+wy+5JtIql5wSGarNJQvqVABMtV2Qe4ARsFkHkeN7AsYMRGm2miQr/5qrZhYAgl1YDuHySdKw+CzAEc/eBJIL8FZlkR3HliIyYxPKcoijU/xwnHK88cKnKa96zFPtY9QwHYbtUC0A38IUE3gfhgDskrve+dgRH32nHSePJ20bAHx5Panx5+QVO9DWzz7klmIx6JIyh68Iip7JwufHlOXBZwq/Cu54/n416YrEkgYCfOM5/P0rREAEEeWjBB14Pgb8kg659iNIyvauPAH3E+548/4K7MB5A2ygb3+dA+t9aQ7EUldON+vqW9k2OHjlPyUYykVePPhw+XL88eNdy1WljBanblYfLZC4I4yfJ+6IOJNEfOkII392+fYsqgAWeJAPGqsLPsk6ABKqwBBIBJA/w3o8nbbWnWNE9R3osYqo5AxQKKM3zyn5vTuO9U45VPwT9PCrq6+gcb7cCMewL4f2q8RSJNKV++VhuVteBosAPtIB88r3qu8JZfbXZKqU75H3IR8N9g8IN/A3sr52SdiX9WqAANDkK41zxxpxxpxxpxxpxxpxxpxxpxz5pcSNPjliTAskRjNVhREajmPav6Ki/Cp8tcnDmuRHNVHIi66LNaC5BJWtRJNBKvbJFIAyOv8MD48HRB+VYBgQQDz6R2jZXRirKQysDogj4P/sfBHgggkchHI9lay1kMkASMYbVRyx5rHNkcj/6bR2MbtPw1OEahfKcfkR/ylSZ30lxmSmM9d49Bg/sWlbYK92vauRETKU2FQupYLoe7rZ5K6HVdqqO2UMxOx3xlddvj90Lj2yxIJ2PA38HwOYsuzdtHero0u/ij7l7RRMiWQBET/taGUruxP04ReE+E48rqIy+kmXifuq3cnXQMSI6uY74h5DeIrKyfbsDtB87JJ/BGai6vqMP1q9WQ68mWn2sT/wCotDrba+fA8D/MfdG2uuuewk3JSIruF9a2CFipx+rgkR3Coqp3eF5/vr1w+mud8LJby7jYJ7snFBsA/tJhC6U//b518Dn2/VWOAISvSTwSClSRiCfx9+wdb8eANfg6J5klPtY6K5HSUARUcjkLPlSLGTwiqreXvVUcreVThV4Xx58akWK9NXrlTbeJ9MCDPLJdlHaxILO57d/+k/G993xzGW+rBInbDHIpIPiJY68Q348KgJ/+Pn+Zfr4PsQMCpfVcxqN7kYg2cN5RO0aK7tTj+b3L/VPjVp4+hHQhSJW72VQnd2iMdq+FAQEhdDxrubfz8+BD7E7WJWlbwWYtob/P87J8/wCn+njn36yHOjjTjnrKr2sco0RX8eEX45/Tnz4Tn5XzwnK8Lxxofg/z41/idjwfB0CN+dePnnB8ed6Gxvxvxsb0NjyB5+deOUtjdUeeV5r6DlGx2cNsG2dtExV+N49k1nTSI0Qjq6ufkVqSnYSsWbcNVx5MSDLBGx/i9GyQNWx3xdc/aQzJPibhkDSLXMEM0kR7T7Y99hF3RAzkKGCkGE+8AR45sBN6OdOWosVaw/qX0x9L9LRlzyZXJYmDJQSTRfXXDiaMWSMd0QY0FYYJLUUsmb7cLK0Uze6sr7S9QFFurVYzNiY9l9RMv1soh4dhi96KPS21F60W7rre1NXggwDRbWFY14ByiDkGJGY0wY0k6RWZDG5mHIxQOsNqNpw4KSV5QIZIftnjlkMYRCkoeNdklu3u2O4LyE9cemOW6IyWXpWsr0/kIMX9LNHZpZjHtLkqGTVLGLvY+j9TJatQWcfPVtySQqYoveKo80SCd//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAEDBQEBAAAAAAAAAAAAAAYHCAoDBAUJCwEC/8QANhAAAgIBAwMDBAAEBQMFAAAAAQIDBAUABhEHEiEIEzEJFCJBFTJRYQoWI0KRJILwM1JxgaH/xAAdAQEAAQUBAQEAAAAAAAAAAAAABQECAwQGBwgJ/8QAOxEAAgEDAwIEBAQEBQMFAAAAAQIRAAMhBBIxBUETIlFhBjJxgQcUQpEjocHRFVKx4fAkQ/ElM1WCkv/aAAwDAQACEQMRAD8Az+NKU0pTVCQCATk8e9K+FgPkj/nVNy8T3jvzxSvneg/3L/yP/OP7/GqyPUVaGUmAQSPSgdD4DKfHPgg+D4/WqkgcmPrV1GdVBZiFUAksfA4H9/g//Xz+tUDA8EGeIyMyeR7ChwJPFfhJ4ZP5JY3PnkK6sRx48gHkf35A1XsT2HJ9KVqdy+fI8fv9f8/GqSDGecj1IGJj60OMnH1p3Kfgg/r5Hz/T/wDRoCDkGaU7lPPkeDwfPwdVpX3VAQcgyKU1WlNKU0pTSlNJA5MUrg85n8dgaq2r87RiST2K8EMbWLVuyQClerWjDSTTMOeAAFX5dlBGqrp72pYLZYLGWcmFVTyxbgftVlxxbUsZwMACSe0ASJOeJqnd/c+/bvCYfb9HE1mC8XM3Ktm12soYMaFSaJIpF8d0bzykHkdpPgb66bp9gBtRq715ifk0wRRukfrY8xOQIIgjJisCXNRdYC3bCcne5EQDElD5gfb/AFgzxdXF7/yU8rZTet6rAAAsGFo46gsp7iSROtVrEShPHDSu3wCee0mzx+ngk6bQWw7R/F1Nx3uGAYLKvl5gmewHer1s6qYvalSBwqrtbkGCwODgiRiPfndS7LyEvmXem8nLMSVOaPtr3E/ioSONQo/7gF8Hn5NPz5/+P0GO+1iDHcA4E8wePpMXnSLEjUazj5fEtlcZAGCSDMERMcGTNSPDbbrYUyT/AH2VyVqWMRtYyeQsXSsfPJWKORvZjJAUM6oZH7QO7jnWvqtU9+2oCWrcEEogAB4BAIjHeJIIEQAavtWltGArtxDsSTP34HPpg+0H7kpkhjkcf6chUnvVfbf9HuDjgkgcEc+P6gcAnSuXSlvwiIY+hkRHckj2n0/kN2zb3su5TskAmJ7YBHJMnjPqMg1AP86Wq9ha1qSeXtZo1lhtTVZZI+eVUTQOpEq/HLgpJxw/DHv1aNdasLaDBSpBDkgQDIjzSZ7n7RjmpFukrqFbwSRAIgSskg8kwZC9pnnPAqSVsxlLhE2H3BbjVfMlS/VoXQG4/FZXlrpc4PHhkuDyST3fAzjV6Vm2NYYllVwycbWiMTAJ9COP3rRbpl1Ob21ROSpJkYIzjnBPtmDFciN17jqKDYxMGVKBjZSi7Ubgj55V6tWy88FlVXn3B95E5PBWLz2nas6fTXnKpdaw7eZTdEqQZgQIA3A8RuHrxWjdVrJUq3ipJmIDEgA4TkntyJExniT7f3dh9xCSOnNJHdhPNjHW4jWvVkLdivJCxPdEzcqk8ZaJiQvcrkLpe0t/ThN6SrcOpVkIHMFTGP7881jDqdokSwkA8xzx6juOefSpTrDV9NKU0pTSlNWsu4AcZBPbilQbeOJnsHGZem0f3GGnkse3LH7iyROAsnaCw7WXuZ2YEEID2lWA7tvTOPNYckJdBWVO08AAE55+3E88YbwgLckTbbcJEgkwM9vYSCM8ZmuCG5sWOIr00dSVlBDIxkgb+YMO5VE0TKynvSaJChHlnH5m5tKZK2QoVSVEtBYADJJJEn6xGfcl1CkqwwxwSBMeygR9e30rd47L0/d7K96ldgYhQYbMEjxnkj81VywIYhSO0AkHk9xA1G3bV7TvDW2dW83kG4LkCCZMz/sOIElFm/bLhocLG1mhycHE/wBzk9u0n5VlDHlU8EN2sqnn/tC/P/t58+PHxq9biuSu11/T8vB7DnEjisQIKgg54M9iMc959ua0ndOCok588fB4/Xjzx+j+tGSASASR2+8en1+9UJYAklf2P9/71HMzRFqIh7P2448v289vngeAw554Hg8gjg8knxq6mwLyFrlzwQV2rLQQe+Z9J4A9yBztaPVvZcKLa3VL7obAxxj27T6+tRGPbGPUl57bzSMWBeOuEIPn8gHLle7yR58n9jxqNtaK0s7r63CcoN5zmCBIM5xkA88DNTVzqtzzrbtW7H6VhhkMOWgDjgexORzW5+2w2JJsI8sLxt2mWawsQ8nlVYdyIyfvkgePIHjUlaUggLZd4CjcpDA/5sgf1xWm969fBFy9aCgHGDu3ckmYye0Gc4qK5rqvt/DhltXq9sR/qkondWU8ANL+NeIgjw0s8SjySw8jUzY0V3UsD4JVgMOWEgREERIziJ5wRyDGXF09syWUkDMQVPqVM5BIkZHvFfOluRPUbdkvUWisdXb+JgnwFIwSmY5e46H7yaxKipBPFUMqjvjLqJ444kLGJ5H3dde/K6a305yjs7eMjbYeyu0TbLGSWcgmRBMyewEWLaPqPFE7ba7EAkdokwYMzHGQI4q5zUPWzTSlNKU0pTSlaU8QmikjP++N088cfkpHnkHx51Tgq24jb6RmY5MGrWAYbT+qaoHepxS2ZIobENd0PsyxWK6ywl1CpKGWQiSFvdVh3wup88cHlNSwKm2CyzIxBIMTEkAjIJIkewGBUUDdW46gwD8u0ASMcgzHE5jsewNQW5hKcdqOU4DGWHVe9ZcVZao6s3DB3iYx9x+CVHchb5Xu4IwG+qulpXLlpAU7Ts+hEyP3iecVs2lugM5VWbksSwLxHoV4ECcfcjOu+VejXf26WYqMAh9yjLJ7iADhyWjnJBPHwvA5HHAGsrWmY4Yr2JCgD6nymYzInHt2tXqAT5hkFhtg5P2n/wCuSAOZzULyHVHL0pWjp38+BH+TyWpL7nkjnt8ykuQOWABHkEkAnxr3LcAgXkHoSpwMejYJH9Kyp1EN89h9uJABMicmYMDg8H96gOf63Z1VbvvZBQiojCvFaiL9h8M4EhHe/wC3P5MQQw441qHT3wN1u5buNtiDbDH5vmhiynODBkZiIit9NbpnC7tO8ghhtYAmJiZAxzIx2JAqjOa67bjfvhgtZogEvw8lksW7uAj90gDg/qIjtLDk8ceMF2/fsW958GQSSos2wwHIxt+4IIMYk1I6c6fUkzZ2uQSoZiQREzEjE7ePSZjmFZHqxvKdVlTGhuTxFNNbhpKpHh+Qpsl3D89/dECD+yT53+jXNR1AG4rEQSm020CyuCMLwFIjgkkcc1h6gbOnZU2op2rJVmzIBgyTIiRgcnjvUJz25NzXsXeyOQy9OmsETNHDQisWrLzzsscaLdvSBK/c8n5fY0o5ZCT2ToPOuy0Wha0WuXQjOTuiSDBIP6TA/YD9653U6lGnYhgSAAciMgQduOPf35ruR6Abck2r0j2Tipa61p2xEeRsRL57ZMtK+QTuPPPumtPA8wYllkLK/wCQOuP6pdW/r79xW8viqqe8EqRmeYxHYcmZrc0ylbFvd8xEkHntz9v9qrNrVrPTSlNKU0pTSlD8HVGiDIkVQxK+uY/rVu/UKjS/iMkdmxNRkWT34Lteb7WRDaVXjHufyyFSJITHL3BiAAOSutxQb9lRbMbAB67gBPcGPWQcQO9R1+bV8O8MhERjac4MwuQZ+0DANUhsTZfH2a/2eYgvRFmRI7qEN2sD8SQsylwBx+QIPkkAgtrTVxp9Tam0C5Pl5kMGhR5jxyc4O7v22L1sXLZIdhAG7b3kYEAfTHt6zP4sZ3PEyRGrWlJjYMI7AQgIe7uUyBee39gk+Dxz4Gp5brXCfIVJyB/MzkiJ7AQeIPAhLytkSwiADgECInjng/X6iqXZ7KZZAzJjpe8vyeXiflf1y3eTxzxwCO0/B+SdaWqa+olLAeSJgCImCQAsnHBPEczNZtN4QGy5ccSGyWI4E9jzPEgzH2qiu5s5kYk5OMscsHYAyRRryOOQ35HxxzwAeCT+uBq5AZUNb2HbJEDOB+/IIn1wTV6AQ7AuyJJDF2MrgesEmciOPTFWybo3XmYpSa2J/PuZlMtiERr2Pz3OAWLdzDz8+Pngk8aVzSA6kvtlGmVJO0yIEGZkGMY+vrLWL5YLsJDAQGmZPEDnHtAkng4qKy7k3nciQy2MXj4ye4LFFLan/Ikjks0cScEnwA3A44HPk9T0vRvpkVbCIqk7wCM7myxkk8R5R7TkzGlqLzX7hNxpK+USYPlkA4jtBH7cAVMtk4SfeW9Nk7XOYu38pn9z4nHASyp9hSgtyCCS0MbAiRAxGUS+7KZJSIzHGyAnUzcc6exfvEhrli0XcSWChsqJyNuQM5gCc1qqd91UEoWPIAJMyQfN64wB/Osi+rWip14KsKhIa8MUESKOAkUESQxqP7KiKB/8cfAGvNyoJLHJLFsmYMkjPsSY+tTgEAA9gBW41Wq00pTSlNKU0pTSlWs9Zt11dqbyx1fLUBew2e2yGm7ex5IruLycyEpBLwkqvVvB2IZHj+2BUsWC6qNWml2hjAYtgYxAHYcExycH71Q6I6seUjcswJM8cxxBnmQcEVa+m59iW8tas0d4JiBJbY0obdsVIe4F1aNYsgpiQntYOiyDgqWX988/b11p+pbTqVS0HBXxWO1TuJ+ciCQScSPc4Eb13Q6i3o4GkNx1QzsHmIwASoExAgMRE+0mpN97buD3sXuPD5Fu0rzXepcXjgckmnYm8EAee0eeR8Nzrt7d1fmtXbdwEco4YSREmCdozzOYM8Vyj27iT4qXEBnDhh78kcDOATjM96pfvHJ7gxdW1bs3cRFVrQvLYneWWFI4oxy8jM6EKqgEMT4Vf3+tZvO/mZhtHzbSAcZHBMCYnkY4rGiq5AQbj9CYx94q3W5uTLbgx0OWxdrEXMdfi96ndrWns17ERYj3YnSNhIjcNww4BHIPnxqoQQWAdpxLSwM5EGAORxMD09M6o6kCDHBABj2kRxI74xmqDbkk3BJLN328fCCfBjjlkKhW4IXn21PcOOSfjzwO7gkUVgIEncAQPTBMxmPc4EZ986sVCwDMnjBBn271SS3nKlSaUZncrskI7jWrN7bOx5ATsh9yYMqr7na/ZzyF7jwOZK1qLNllW9f2BUBCqwJHIick+oGIA4rILDXR5dMWYkS0wOe4xzEfaciYrZ6Btwzb39T2wqNCuYcamYzu47P3CS/fS0sJh8mKUc/ulmjhjsGpaJUgvO6dx4IRdbqXVEuWNXYs/wDtsqAuQV39mz3JEGZMCRHM7q6A2gl50h1G2DwpXyxkyc5H8+ROTF/5/TXL1fTSlNKU0pTSlNKU0pVkPrRglgxGz8vCvJglzVSVxyGVHjoWkJcFe1f+nlU+eT3nj+hhus7lsC6uTakkQeGBEmMQOSOfaproYttqLiOu4m3KzkEhh2jMdwIwfSSOhnqdv9LPV7bGwLomfF4qLce6LsakrDNbyay4vC/cKoAX7BXuXI+4kO8p5RlII8pvXvHbU3Sbga2zAKGAWYBBUmMDM8Z74r0+zZt6a1+YAslrnh2CjDzAMoliCIjdzGNufWaZZzrLs3pU8o3XvDE7ZNuOaxhoctl4MecjHTlhSyKcdieKViGs1gk8I7O8lI2aRGCzfwk3UdVauXfE1Fq0GcWy3k8XaSwCglWYvjaIM8Z78d8YdV+H+inTrrNRorT3bRvotyWYorFHOzJ8txY2HbuEQpAkUn3b9TD0518BexO4equZq2J4ZK5hoPdaRZI2DRupzNjCoRKQnIiciRJCAXQo2vR7Fxrlm5au6q5ad1K7SyhkKjkrMjJiCBMwZ4rxTq/4ifCnT9YptuuoKujXPyuiUFV3eYkbgCo3emVxHerftt/Un6FVIEwcXWvc1SosjfZQZBbckdeCSQBooIMRZy7mIF+4IkfPcwHAJ866afX7rap1Ngq7pBuEkKSI8oJMzwRuwYiON3T/AIofBepDu1q4jPEN+XWzHAg7SzFciREAyd3aqlH1VdOd9T1MftvqZi9zZLIxyfZ4uHP+5mbBSJpXQ4qxNBkIpURHkeGWqkqIkjMqGNwuxeGt09tmW7duAAjdafsTkZJJnvwRmMAV0/S+u9A6o9q1pL+ia/qHAs2Af4j4JIKMZ8oBk4XGYkRwmP3LZ915bdpzFLO9oK3CSRQryPt3XuIZk8r3AkOWAAH70tLrLraiHdnVAGJYmd36lPPaACCBPfINdodPYFtQLS27mVLKCoJXkFW9PrB7Gu3H6SGNGf8AULuLcCL3LtrptmrKkE9sLZ/JYrGVj5J59xK8saggFeCBz+XM2t43bTMwhWc7ccknjGRER2Hp6mE6kptratmJDszkRB78AnInM5jtHGSVqlQtNKU0pTSlNKU0pTSlWc+t12pdIoc0GCR4jceOey7DkCrfSfGyqxIPajGygc+COARyRqO6mSNNdJUFQkme5zgft3qS6TB1tobipbAgx3UmfaO/bPE10CdU8vtmnvOpRyCSPmMtjbuQrNDU5nloUJAs8EVwII5JxI3bXrGUnvaNva9tzrxfV6K7f1yMt427F26q3bYAJVWhVcAlSUckCB+qQQMT6s2tsWdAXu2CWsLdOmJBPi3UVnIxuJAAHIP2IziNerzrFuXq91g3jkMjLkMbjaO58lWq7fmt2rVfEQ15pIYKtGK2xeAVqjLXMAavC9r7qR4Pekca9V0+mSxY0untw4tWww/7blgCNyBSQH4OTljMivzl+O/ibW/EfxH1TVam7ftm5qi9u2GZbdtFJVLKKWIAJlmUAKSQSZJmpWMvY9OhtTqD0tXY2L3TgcZSx27MNibm3Mp1Gu2o5pKlrcUtLd+yr116FW0kc2Twm3srkRjDkKVyjTTGxtPD09tdmiS7o7duxdIm8zKup1Fwx8p3qQCIk4JEmDJrLYOi13Trd1RYt37SKl8IS+oZl5Ny2VAYYEhWbaDMem6j60Veo3QivkOs3T/A7x3Bt3dO34elLZmvJHmOpN8/xCffVW7tuouLitbSxWCrwQZTI42I7eoWZqiRLYyKWYoNi1qBe0U62w3ipc3Wz+XFt2YAlN4RASkAy2ckAKcRK6O/ob+j/wCo0+me8Gi2LdoWzIPlLEgEwAZwTuz2BrroxW5sRtnfU+4MVmb20XOUkethsE9mCTbsc08/fiEtD3nsPj/cWqlutajeRFftidZpIdRlt1a+GZTbF4sHB3CCDKwpAHtEEcCRMVfobaae9+Ytm5ZbctxdhKZRxGy+D4luCdpVQAymTuMCsgTY3VKfePTnZm8ZKb0Y90QYuFa6JJ/qXBLZNxoldhMtWaOm9yNJAZYYZooJ3knR5HihbFvV6gHgS3u2eFGJxA7cx719Z9A1+o6r0TpOr1Fs6e7qNOrEMWaSjMrFmI3Ett3jBMmDGayZPof4Z79brtvSZQrV5Nn7Vj5jAZklbJ5mURuOF7IxFEjKvw4VvnUvbuodLbAVgPGbBgwQQfXkfvx2iNfq7HxkQyCFkgxgk4BHqB9vc1kA6zVE00pTSlNKU0pTSlNKVaD666C5D0w9UFeSWMVMfiL/AHRN2Mv22eoRli/IKKhsK5bnjlApHBOoL4kd7fSNbcTm1Za4cehUAT7y3GcekkTXw7bF3rOgRh5Ll9bRIORuDkmO8ASJjJ9qxsOvVzdU2xt3ZHat+rT3lidrZXIbVyF7G18vDVzOHotdrL9lcDRSxXmpmha9tkmFezJJXeOYROvj/Tuof+taU3rZvW7727DIp5iI3EAxteGAx6+pHpfxPo9S3wv1RumXBpdbp9Nc1uldlLKLqAteWDki5a8pjOOTxWN1m+m+xdxZPc+5J91bI3PkZ4huLNkY7d2IyNi7mdk5XqAlVZYdyW8RYuW62JvV3epEaOOsyVacsz5AvWb36zpLC7mW7bkIgIuBwRuABygMAGc5wJ9Z/OfX9Ns6q/qXe4DfvHduCMo37pfvAKkkgSTOI71TbdGO27szIbsyVbG4fLZHYG5q2Go28Pm8nZ3JfFi7YxmI3Jg4EwMuas7YtVYY3GYlytiGrDbrY4NN7oOr1XT2XcpctwvlItXrxdyYI2g29oEyW5jMmDjBpNMLN1tiWmt2V2rsbNw/5mPfBMnsTHaqf5LcmU3zsvB7tkrS16G59udRdwZCPFbzko5M0unN+SnNhrOQxOzKV/c+S3BYhml23hHusjQwz2mDcO4s3XdRbtXd18G6bqsG1ZUW1tOEgHYckmTMEf6dCND4i27iW0tLcUuxViIj5vN+rsYBieTOKpRkulW1q89v7HJ7Ea9j8m1W5Unz+dyl1IZcPfzeKv49JrGIXLSZJ8PmNszUKUjT4zeVaphLbOmRgsrktaJGNvw7gdxcB/i3i7BRJbbxjP8A+gDmKkbNhR4QUoQtxTcXczFoBhlESQGzxg4zBNdoPpHy24Ml00rTbtsYy7Uwu4sthNq1sdXj9jG47DOatgzXVtXf4pes5Ka4rWVlMSV4Yq8SK4eTUN1O9bs6p1S2VcGHJjJjPBMAdp/tX0V+H9vW3OhM+ou+Itp2s6VTgJbRpmDkk7pxjHMQazVPoi4Yx+mDeu6pEdJNy9WMxWj547ZKu38Dgq0cqHgcj7nI3IyeT5i8fvWbStOmtMBJNwyO/Myfr2/f2qS6zH51/Pum2k4gLjIBiCATAkkwBPv3O63qi6aUppSmlKaUppSmlKtq9YeHfOel/rzRi9z316WbvyEXtf8AqB8NjXzasg/ZQ47vIB5IU8eeNQ3XrLajpfUbAObmg1O1Qcl0UOP32/QQZ5qW6DdWx1rpdx/kXX6bdJgFTdCn1jDGYzH2rFg2ju6Pd+zK1z75LdmvGEsv/OzdycMCAefI5UD4AYKS3GvnjQm8bYZS6X7bM7Os7g8k7hzt7YjHEEE19EdS09q3cvWXtrc0t5gvh3CGXw1XAEkE7hIf/NmecWh9cuhOyOqmI/gstantS1RsvkKO4MFhduUb9Tx2Sx27EmMZbFCR2isSV5WVlnrwGOVPzWTvPhj4m60ms/L3bmp6mmoBRLT3IdduG2tAwokrHEZIJNeNfiH+HHwp1bpovu+l+HH0z+M+r02nBDWbkhQyqIYFzJByflECI6qup/o6607UvXoNr5HGdRKRZp6tpW2bgM5RpzzNXSldwb7RyVlhLZjkhjMFeSCXsMLZiWxzXh9VsdUstoxe1CX7aC6od7iEEMsnw2UCY8ohgPN5iYBr5e1X4adW0etex0vUaHqtprZu2X0Ny2106dp23tSt1x4RyP4QkQSTJAihON9NHXy+LNTJYXD4ZneaJM3byW1Y48bLYlWPHzTYttpUfflgJESiuHmtzFRDRmQmA3Jr9MttXUrqUutc1Fnwi6mT5jbKkAZzuUAGREASKzab4E+IbmoGn1K6fSCwEF+3qbwQ2rdwQt3yTh5lRuIIB7Vdh0n9M+0Om1gZnc2cTfOdWk8X2uS23ttMTTkmSP3ZY6C4tZBOsYKQyyiGEgmZKkDFQvO6vrl1rYA0tyw7MWRiux1UGABEE5yfYZxNewfCf4caLp1385qdRp+p3Ess1234YNtJPlA2k7yAMMcwPqarpBnsXj2TH4/HU8bVgM3tLUjgpV0aUN/LWrRRQIrMxZ3WKMlnbng8nWK3rLuoK+IouM5gO5lsEggmZgDgY4jsK9MtdMt6O2v5a0lq2iFvCQKqSwzKg/NgR3An1E5sH0hdt/5e9BXRy04T3t02t+7qnZAVR1yG985Uo8A/kO3F4yhGxbkl0Zge0jXU6a2yWkUxAbdjtOY/n+0d5rgequra2+F4QFYndEDjGcREEc47iuzfW3WnTSlNKU0pTSlNKU0pUL6hbeXdmyd47XZfc/zNtPce3REWVVkObwuQxfYWYhV7zbCFn/Ac8sQByNfUKrpctRL3rN22pMY3I3EjkwQY5kCDWXTv4Wps3Txau270dostuY+hEESO+PavPWxm7tybPyOUxNe9fwdvGZXIYfKYwNPWmhuYq1LQtVb1GZQYbFeWGSJ4ZU91JYyjIOeR8sanU6nRa7V2GJRTqLqHO04YgbgIwBGMDHYxX1ymn0vUdHotUbb3fG01i8txZKqLlsMIGeJjnBAkDitC71W3KjpE2RbIQSTiOV7QrSIUMizKsrMEcuskaurJ+SSRxyBldVZZTpXVNfpNZZ1enu291mQj7QXT1gHJ3TAAxyBM5h+pdD6d1DR3dFq9OwtOjI9tuDbEsBIEgA+YQCQcxuqmG5dy7etWp2tYWOC6fuInyVHKZWvesQ2ohA8T2oLdedolhd4oImmC1VkkEBi9yQt3DfiR1oHw3e05UFNz6K2ygFYII2kjk5nBMnua8vb8FvhW/ebV2rN6xcvKbZNvW6xd6t5QrbCpI4AwYzA4qE3c9izPcspWkea3jYcZO801h45adSvDVqBqwtmq81evBBBDbFf7pUiQxzBvdZrE+NOslbQFy0q2bm9I0Ns7QQwKiBMEnIEcZgVtt+G3QLdy++ot+a/Yt6S9u1OqZnt6RQiOxbdJEjmMcETmES7zTBxNXxFaOvE0arIFWSZ+VUiFvckkeaVUEkjf6khXudy/5vIX2b/xBrupXEuX7ovMAQCLXgi2Ce23PmxI7EAMDNbPTvhHpPRhc/wxDaDwrXBfu3GugSAAbrMQMx2ic5iuFq7qksK0ti08jcPJ+bqojUSBXZgOAQi8se49qngngjxu6W7vKCdxDHJ5mZKgk49/X3mq6iwAtzaDbRVILL5SwETujsDgdyOZr0YfpwYK3t70H+kvG5CtNVvHoTsHJX69mJ4p0v5zDxZy6Zo5FR1d7GRlkIdQx7yWHLHn0bSbhp7AbB8IT6zjn3/8Yrx/XlW1mqKgbfHuwfUbiBHtEx9avZ1tVqU0pTSlNKU0pTSlNKVoTBjwVUt2gkcDnkn9fI/oP3+9U2gurH/tywnif+D7EggdxYwLeUYlXBPpgEdiM5Hef9fOY+q5U3D0A+oH6rMDYqvUqZTqJd6mYmpLLLCmTwfUmCDeMOSq2BHLGVa9ksrTEZiUGejNCJUMRkbw3416ErdUuXlUWi6l/Et+Z7rOdwBVQAGBJgkY784+kfgPrTX+gaPTswLWbaWGAwyi3tQehOBPp34qwGp6gKkqRR5erPRQ+2Y5ZStmN+B3B2lrr7fgeApXyeVZ2PGuS02g1Fltr2ldCQQ0AOMzmcTklgMgkAZzXX37mkfc632VzuBUnkmQTkcHJngyOxrSz3WDAXbRSllsfMHiUGcSgCIsSQPZ4Uqe4dpJJK8juUHjWfVaG74ge2pG4zuiQPLgE+xgdz7ia19O9sW8kdhAaCIYCAfptJHBB57VT+51Qqxkp/FK4dG7lZJgwIYsSWC9y8L/ALiHPk/B/ddMmqRlFwOwJAAVZ8uATBHODEY9oisWs/LkZySoBlgSf5Scdj9DHfipupeKZSFvLYkY93bGJHmlcceDxxx58qn+0hR2dvOuo0mlum7u8wUxuOQIn1zBxOfSBXN6i/p1UBCIWTAMR398dxz9QKmnRXGZ3rL1q6R9Ito0LmRzfVDqRsnZGLxoRJLlufcG4KNfIiOt3GD7arj3u3ZFmf8AKrScOFEhUdN0/Q3g6DkG8pgAywPOORjv9pHNc51LqCrptQ+4BUtXAZYwCUMAkEDJIIiJ95Mer9hMfBicPi8VVKmtjMfSx1cpGkSGChViqRGOOP8A040KQqUSP8FUhV8DXpIAAAHAAAHoAIArxaSxJPJJJ9zJz9+a5TVaU0pTSlNKU0pTSlNKU0pWAd/ilOmu6Ng+tXpn1dSWAbW63dFMfgKkkcqmT/MvS7K5LH5mlbgdleNpcRuLEXKc6gV5YoZ4ve95GiEB1zp6660k21bZJ3QNxMiBkRxP8sevcfCPVG0fi2luhG3h1RiQCMTGYk57TP1rFwqdRrH2zw5CpaklrM9ctBNED/pHsVnQhGYsiglFk4buJJ5UrrjrnSU/Si9wBkHsME/sY5HbgV6OervEuACQxxmZHODiJBz37ntt7O/KncTMJY0/BuyeBoyR2njiSKOTnyQvluA3HPP8xwXumNCwkMsADbu5HeBkAe30g1aOqLtE3pwBz3BzIxGM+nMVxi73xfY5Un3ZO0iOvBYkXt8FUd2RUZQASFHCk8eQOdWDpmoUw6AgiACgUYyIMY74x3J7TivdUQsNt0MduRORH0x34BmcRNcVf6krVTtqQkmJw6mSWOImQleCI1DHtJPd/L8eDwdS2l6dqHiNtqI482704AxODkiOB2qE1XUrKnK+Iw4kws455/Yj/U13Of4eDZW7ev31W+grY6kt3GdIoN2da96XHkT7fBbf2jhZ8XjbYgeRZpp8lu/cO28JUaMO0NjIxWJY1rRzzJ1mi0RtbWYk7ADuKkTA4AODnuO3EECuS6z1LxdNct7Vti88KocMx2hdxMcTEnMdh3n1EIlKxRqwAZUVWA8jkKAePA/f9tTAyAfWuP49/f1rU0pTSlNKU0pTSlNKU0pTSldIH1xvpT5H6mfp3w0PTDcGN2t6jejF3M7i6R3c7Ylo7Y3VBmacEW4+nm58jXhnmxdbPNj8fcwO4DBPDgM9Uja5C2KyGQeEcgq2VPA4IMd+Z9f5cDNyO1t1dGZXXgqYHM5Hf/x6Z8zv1C+nL1J+j/duW2X6julO/Oke4qBQ3aPUbbNjF0LtuWy0LWNtbqribae6MRM0fvUspgcvkq1+GeOeqZYiZDqnpunut5GVXndB7n5owQAfUe4nFS6de1tky5N0RiIWJiZwZAxmZwe9UD3jLuDbl9Kmax6wySVa11UglMhataj9yJ+O1AFILMAC3HBUksDzXU9HVNs/qyCq7WEZIk5A9zjtGRWa18RNfDs4UEMBIktImRGJxGCZBwcLULsboyDNd+3oTEUqy2L7xdr14KrNDEs1iUFvbVprEUS9xAaWRIkBdgBqf4WFIJLEA8O0jM+m494BI+vvnfrx2bUXMiSEAxmSc8TGP7ZkfSfp51f6+bzxuw+ifTreHVXfGWv1qmP2p0x2zld9Z6xdnkKwQyUsHUvw0eZF8NkWq1xwxeUdjESNjTae2BvaBmFgRgnniIkZOT/Ixeo6jeueUeWecyD6REERkftMxn0T/wDDl/Q+6pfT+t7s9Wfqtmr4b1C9T9jnYe1ekOIysWXr9K9g5DJUM7l7G9szjppcRl+om5LeMxMM+JxM93DbQxdSSp99kc3kbz0M7uhAS2sKsiZndk8iPWcEn0gRFRzkuQxLSCYMnvPOSZye+JxmDWWCPAA/prHVP+elNKU0pTSlNKU0pTSlNKU0pTSlQ3evTvYvUjDybe6gbO2tvfATCQTYPd+3cNubESiVDFJ347N0b1QF4i0bMkKOysQW1RQVIIZpBJkmee3HA7f1p/T+lddHUX6Jv0n+q96bKb49Bvp6yGVnESyZTFbP/wArZIpCpWKIXdrXMNZWGIMfbhWQRIfKoCARke47/M7GBAk9v+etWqqp8oAyT9zIJz3IJE+lR/af0JPpBbKLvhPp/enmaSSSvLJJuLa9vd7SSVJlsV2cbqyeYVvbnVJuCO1pER5A7IhFgkTmZ9QCPuIE/eryS3Oe8wJ4jn6YrsS6X9CejHRLDpt/o50q6d9KsGkUUAxPTrZm3dmUnhhYtHHPFt/HUDZRWZjxZeUfkf3wQOQR61SqrgAccADgcDj9D+g/tqgAUQPWaU1WlNKV+JGZV5UAsSAAeeOT/XjyP6cgHj54OqEgDOOwPuTGcH/cwO9O4zAnMCcQTxI+2ecRmrG6nqy33jrm58Zu7oPv2O9XzeYx205ts7c3RlMLaqU/dp4yzuTLWMLA2Liv5aJkmvUqV2rBh+MxCllCtd+VX4i1Ntr1vVdK1auXvDStYtXbttltnw1N9tm63N4qpYIVNk+OoKmB9D3fwV+HNXa6Rq+i/id8LHTXNHodR1yx1bqXStN1Oxcvout1SdI0VnqNxNe+n6aSE0t3U2btzq5HSXuWbp8QVd6QeojCdWsVt69U25u3CXM1NkqFmlkdsZ1YcLlcEJK2co5fKSUa9HHSVMrTyOOrx3His2HrRmWCrPZSqsn03rFrqNqy6afWW/HVgDd01xUS5aAW8lx4CLtuh0WSJCgsVJC1wPx5+GPVfgXqPV9JqusfDuu03TPyt+1qNJ1jpz3upaDqYXUdJ1nTtGmsu6jWW9V0+/pda72A9tLd2Lb3ltvcr//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAAGAwEBAAAAAAAAAAAAAAUGBwgJCgEDBAIL/8QANBAAAgIBAwMDAwMCBQUBAAAAAQIDBAUABhEHEiEIEzEJFEEVIlEKkSMyYXGxFiRCgaHR/8QAHQEBAAAHAQEAAAAAAAAAAAAAAAECAwQFBgcICf/EADgRAAEDAwMCBAMGBAcBAAAAAAECAxEABCEFEjEiQQYTUWEHcYEUMjORofAjQlKxFTRiwdHh8XL/2gAMAwEAAhEDEQA/AN/jSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlcFgPk8alUpKRKjAmPqe2KgTHYn5Zr4Mqr/AJuVHHPc37V48f8AkeFHz+W03dwFHvgH/eKTAzAJ7EwZzI47RPrnIFeNstjEbtfIUUbk+HuVlPj58GXnx558eONTQogEIUQY4BnP0juO9Nyf60z6A59+3auRlMcy94v0mTkDvW3WKcn4Bb3eAT+Bzyfx8HiBJBgpVPER/wB1H3xHr2n0/f8AbNdqXqchAjt1nJ+AliFif9grknUCqP5T+n6wTFJB4M16e4D+f554JH9wOP8A7qO4ROeJ4J/WKR3/ANx/bmgYEc8/3/H++oBUkiCAIgkYPypXOpqU0pTSlNKU0pTSlNKV1zOyRs6IXZQSEHHLcee0c8DlvgEkAE+SByRLPVHaOYkyTA7jFQM9v36/pVtpzu8N22pEtZ25tVDNKseHxSLSswpFLJH2T35kNu5ZAQfcNDJXrxMyhIweeKF886w8pi3bSdwAFytCnEyeAkJ24Oc5MgZAmru0at3GkvPr3An8FtWxcpOSSc7ce3vxmMJtjA1I4LWV+/vWyV5ny+Vv2++QElWkBstVDOxHYJYhz4Bb4Bx+59Kit58pVkkDbtI+UAgj5qIJzmZvAWlki3YaQkzG4FSsRhalqMERmPXiohPisXHEWr4TGyOw7kR6VRXfkeR70kZJB5PBbnu+eTq48x3aCHF8JiCD6ZH6duB8qlCQlShDZHM7EFPvHSO/OYBxXwtGrHD2rTrRK/ttLXXH1vaLDk+V9oqxUcgSdp45bjw2pClaupbiwoYSoKIIHuQYJx8oAkGKm6FJjanafvJgAE95AAkHHuPUZFQm1h8dPYrW4KdOGWGRmnWKpWRLKMjAxyqYIeCG4dJIHSQFQOSnK6pwd/mJKxtPJUSCVCDgmCAMd4OfYzJIS0W1JSpJERsTyVd4E4EEQSBBkmBPtFWoFLxQTUbA57bFO/bqzA+DyrLP2rxwP+Bx51WDzk7d5BwIBGfbIJPz4B5gjNBNswVkqbChBPJCgQOAQoCCDwQf7CvHXz+6sXipb8WQtQvBJLLLR3TdoZeqIYpJEHu36zpbgjnjVJo5I7srw96LJBI6vGKtrcvLUG3rZZlezehUqGeYiCBycTBxHIi7ZskqW3cJRsSVBJSSmRGNxIO7kTme1Vc2XuQbt23jNwCq1JcjAJftnPcYmVmikCSeBNC0kbNBMAvuRFSUVu5RkHEhDikAztiT2kif04P96xiTIM4IJBSeRHr8+Rxg8VNWpKjTSlNKU0pTSlNKU1CBzHaPpzSre+oNOKDPzRwSQRy3K1e99nJI8H3UgZ4J7MbRkiaRGRI2MkUyoSQQvuMGlddKEphQCgcBUnBOdo4mYxjuRk1S2K8wqCTt6ZIMAwSSFRn0k8kY4wZCbcuSxUaw/a5ORIiVV0mW6gX5IB71dgB/lBhDfHj+bB0BEFaA4F8pCQB7gwSTJ9eavWXjO3ckAEqmQDJIiI5Gf+STUIn6u/ad6SC7CUB/dcqe4AeTx3BoYmCA8jtDeBweT44tnbhKeU7U908EDhPaPTsO/tV4ltSkykbt5BABkzIJnP8ApB5PpzgwKx13WvWn4lpzz8AwvJRdURVYd/egce4xH7VU9qgEMSSODFLySjzEp3gD7siTnvzmOY+mMVUU2Q4EugoECZgn1kAEzj6fpNPMr6ksjByIzQj88d0eGdi/Hle0m54JB+e3nkeAQeNRW9jqYhPu4pPfB3NyR1ZAAz7ZqdLIKVbXArMpASSSN2QRPdM4GSSY7xTnIeqLdsk8OPoyXfcYMXkrY2vFyhcnlpJY2SNhyFUGZCwHJIbyaf2go2IbYG5ah1qW46NvAIUqIkwIggz24q8bs2VoK3HVjownDcqJwCFAnH0E+vA9G1975vqJvjaG0spcyDfrudxiW4pbzvYfHLcjfIpTrQtYjr91SOz3uJzCsKySMihe4Z+1cLbKVFKQ4ree24k8K7lOM4PsCKxTzcJfUmQ0P4aZAIUsn7qlED0iUyJzHFZcIIYoIkhgjSKGJEjijjQRxxxRoqxpGigKqIoCqoAAAAHxqWsb+/8A31+Zru0pTSlNKU0pTSlNKU0pVr/qRVcVjMFuIh2SvZnxcjx9wsV3sr95VsQunLqUevOshH4KHhgCNYHW3l27KLgEhKHClW2ASAARkmQUkkyOCRg5IyOlth51dqohRWkFO8CJk5JjvGAOACTVlVTqln8nJdgr5OeGKhKY4zkY61tLIA8SRhSshibnhWcK4PII541rH+KuPKV5V1ICZAVJVJMQqATOflznNbAdIaY2ebbmF/iFOAZ/oOdvAJChyRGeZUzHUbdcTSf9rh7Abu4ftswMwHJfwjrGCT5A7RwfyQdWi9Vv2/MK0tLEBKCZBAnnqJSYEwDnsPbIM6XabEJS460UlMpxOVA5OTIBE8YkVIV3qtuOCGaQ4rHFkB4C2LHaF58svEnPJ45IPPJHA4B41e22tXIR1W7SgDPITMCYUUnvIyIx71Se0dlTo2PrIBIMgGc9iQCAfb585q3Tqv6gNz7ZxcV6rtCXOTWLkVSOliHjknVpjz9xL91ZjiiqxeBJIzcoCCR2hhqe88SKtWErNsHVLXtSlpPGJVO9e0mPoe3Am807ww1dPLb+2BhAbK3FOGBKuPuJkFXCRBAOIAEiS8Xv3e2aSO3NYrYcTxLIYo0jMsKsefbeUdikpyQ3BI5APcfk3lpe3N2W3S4hpCwChJncJgkKlKQI4Cev2IqN3pVlabW07l7CEbyDC1SJIEkndjkAERHer6/QDhTurrjldyPkTkxsna9yW1NI/upHezU4xdGvXKr7YkEaXZpwGJjUovcpZgc5YLW48vc8XPKER/KndJxgcGRxgDHJrAa4G2LRtpLewrfkACAUpBzzwDxgYM5rNgBxz/r/APgHj+39+dZitUAickyZzGPYY4+c1zpUaaUppSmlKaUppSmlKt59TdOaz0uuz1+1JKOYw1su6hgYjYkqzL+e3vjsdgb8Myng/BwfiJKTpdwpUkICTABJyYMAHk+v+nuMVldE3jUWUoOXNwVjdgJJgyD6GIwJ5FYq7ktVcjxKYvdj7WdVASRoST+1mUEguFIDEKV47gPg64v57lu+hZWQgGVAAjeDB2FU4J4kx3jiuo7WrhlbbYKHAkkqVkSFQYVnj+WOMKMxUkZe/S914lmswAEMqx3S5VWJHPZK0jHj8kL2kAkfPGqydT80rDocSgSpB9pz97EAkmZ6uxmpU2LoQhba0KWRCwQQPQlZAJHGO5IycmqdZGxHbhsxRZLIo0Plh70SkqSfgGJvHII5I+SO7g6yulPt3KihCnioEFYJQRtM7TJMQr0HHtIqhdJVbFC1Kt+pMggqI3En7xAImAmZxOJwALdOoNkx2KFZreQljIkmlBsIA4LCMdpWDkFVB5HP5B488am1xaUOWjCWypCiXiuQqFAkAHMbgEwBgciY4v8AR0rWi6eOHFANjZKoKTuMjBIUDOASInjiNbbgwjVxYX/GTtQO1uRpSpUccdkrFTx4JHA4ALHx41uekPWItA4FJlCB0rkbTt6sHIJjGDwAZgVruqJu1Pho7oUsgFIiDuwnBJHEyf8AoZa/pj0Ipq/WXPBFBOb2zhImRV7AIqF/KTxDtPClDPXdhxyfdRmPPBOW0MhxN09AG94hJ5lImCDxHaBERkCtd8TdDlmx3bYJVk5JVAMHOBgSTEe9ZXNZ6tXppSmlKaUppSmlKaUppSqRdeKpudJN6xgctDjYbi/yDRv07hb/ANCEk/6c+RrGawjzNNu0gEkNKVAiTtE95HzntV/ph239r1FALoSSCQYVIiR6zFYXMjdr1cpPXKu96xF70x7SywxcgRPI/wDkQEgrEvIJAb9pAJ1wx5JKy4sDa4tLbbYBIUZkrB4BGcmT6RFdZtlNIIZAgoaccdcUT0+oJkAGVDdKp4OMCtfD1m/Uo3V0x6w7n2F0Yk2wYcFZ/Sr26Mrj8Xun9TuNXqwRvXsPWS/TTHXmyle3TjexXswGplY7DQiKPW9adodkLVLd00HHVJRuCnCEJhRIk8kRtkY3AHGa8ifEH496lpniS80bw1dWjbNm85ZuXSmk3K3X28OLCloSpptoY9dwISFkxVsu4vVp122rv3B7e6reqDqJtb9bkqXqt3Ye0sBW2jJiWhmJ3VQt7ryGOzeQ2xVtR2q8t6vtmWhZmpzx0pJTG5XZ0adplm6hoIt9x8uVotEkgEBQO5ZUkpAEEwAQYkcHTLn4g+Kn3rdvUPFepoS+gPBds2PIQlZHWkLW0VsAhST5aAoKBBGYMh9afWR6g+gu8v8Apnc/XvbPU6aeSGzDQs7VW3uDE7cyuKxW4tuZDLvkMfDTFnL4PN05J6tGUPVvQ2YLDM0QMkL7R7F9xP2ppu4UlQQlSIbW2kp3JWsNkJAIVylIxkzk1nrH4m+LvDz7jA8SN6kl1cBD7HmxCWXE+cpySykpcKpAQTKeoGRWV/0t9b8d1t6VYLfePkhryZOv9vlcdHbNo4zLRdqW67uYoDzIpjsQr2cCKwiLJMIjPJr2oWn2S8XbkgNAJUyRgLbIGRtGQnMk8kdjXqnwX4ha8WaDbawQA84t1p9MpCkvMKCFkoG4I3zuSDmJknE7Nf0ysKmP6D5/NGLsm3L1L3BbMhHBlr43FYHE1yPwyrJXsrz44PK8ePG3aEI09vIMrXn1z+vznvWveKHJ1VxBM+U2kduBye2ST6AcccVkb1ma1+mlKaUppSmlKaUppSmlKp91Zpy5Dpj1ApQFRPY2fuFK7OCyJYGLtPBI6gjlY5lRyORyB8jVpfpCrK6SeFMOiByYQokD6A1dWR23loTgfaGQT6ArAJ/IwfY1r97q3PkD0+3VnMRjo89nMXtrN262Nit/pxzN7HY+xaWnBcMU5pSX3hmrU5pI5UjszQhx7Zdh500a7bu7lpbxe2C8SlSEmIPmFKSN0fywCUghPKowa7H4kbuNM0zUHbRhLz7OnPOIaU55CHXUNLUlouISVBTxSEJUfwyMlJ51Jd5enSbe26MzuoXsUiZe/irz4PC742blVxz5yLCNjcRYZoq+QjsT183h5njnMM8NPKVLEzQRWqwPcRYKElZOwhuNphW47dkmRO3BKhM8CJM/LrUtAd1bVb/VSWmXL24XdKtmltOtpU6oqDaySFKACgpXVIPVKjUnTb2w1290o2/vJdz9RJcvLjKnSFd75/D5OTbMF/K2qFeShmHwttcTt4ZmnNDkNu5tsrTltwi3kMBaSae3JehLUMeYVPEqUGkKyQQSk7yrAT0ghJyZTAjnIMS79hbfccuFdKbVDjyCxaFZUElpbqVOtqBQoqbWrbtieRNuu/NhWup25Lu57t2/WzG4rFjLcZLMbVqZHNXbsGWvQyXclmLl6/lcxmq2GvNRjsXwO+KDH16OEe5RxrzpYLqyoqVuMBSlKQlBJBKQogyCQkgZMgQPUZRnTTcKW8pThLh3ElLTe5RStwErLkFICJx3KRBBisrv0y7m4MHtTdew5MRjq219tZnG5GfPtlq97LZTN53GQ2UoiHHoKIq1aCU55LjuvuCZIqkUkA+4fXPFSbe3+xOqLqriCICh5XlAkZP3ldfoOnJgkGvWXwIXdJ0nU9PVbstsWbiXPtBMuvXFwlskpSlSkwlJRI43pJJ5re19A2MOM9KnSuR4xHNmK+4s5KB3EMmU3TmpqbgkD5xyUgTwFJBYftKk7BowSjT7VQylxvdOZG4kyZznaec4PpAzWvqJ1i/SskqQ95ZJMyUJSDngn1j5xmryNZisPTSlNKU0pTSlNKU0pTSlQXcVcW8FmKhHctrF5Ksykc8iehZj44PzyWHjzz/Gre6TvtrhAkqWw6hMc7lNqSInA55qo0rY60sxCHG1GfRK0kx7/Q/KtR3G9SrGIW/jhca19rLfr2ImKN3R1pWp20KckmWNoCZUkUJz7isvB514UsdZv9M1S6QbpZQ084S3uHRDi+0QCnaJHbjOa9p3eg2t/Z2yXbYhTjKUblJG1YUkEE9jO8mTM1bv6hfTn0b6jbJxkmKli6R5erJNYh3DsPFbbwyZGOet7kSbhqNjjHkK1KSmtiAxSULIaGOE30grQJrt/hrxprT4+xtWrmr3K2xchsXCW3k27YHmKb3SlbglCUtpAgFW8xEeWviR8EvBN8gXXms+EQ286g3tjakWz1y9+C3eJ29DWxJdU8ChPadwg4gdw+k3qqs7ttrq70+3JjcRflyNnNy7lp4yyzUpCt/I3sZbx1eSjmihJyGQw8LxVWmT7a7Yhljmk6+xfLX5CbnTL62uXCxCHbRe2XtylHzUOKQSkhKVCQrlUYIPlG6+GF5bO3S9L8S+HdSs7ZV0sPs3CGVhthYUXvs7sXCQgJACiClSVdKog1NOxPRZtw7kp3er3VvF57LrZrXKXT7bEtK/jMgjomWmkyGRzmJlyF+vk4LMc9pagjjFiJ562UkkEqihf6nqFqwp9mwW1b+WEm4cUhKApKlI/BKluN7lEhO8bVEA7hxXQfA/w10hy8Ztdf8AELTt8m4ZCNMsW3Fh3pDiC4442Ert3ASlXloB2KI3AZrIztaHamzTNV2zgcFtqhYV7dqpt7D4vC1WmiSKNbM8GMq1YZbK1YErxSypI4ijji71RFA5vdX7906jzlrWSSEBaisAJKiCDxgmIOT6kceudL0PTdIYU3plnbWTG8EotWENIWuQklQQN25JATJ7A8Vui+l/Avtr079D8HIpWbH9LNkx2ATyRYlwFOzY/APmadySQCxPJ8+ddj05kosLJBMxbtT2gBBKTHqd6p7g8jFcO1NzztSv3DMm7eMkzJUtYP5BKc8du01XvWRqyppSmlKaUppSmlKaUppSuqYAxnu4KgguCOQU5HfyODz+3nxwefjUq524BORgckSJ59BJ+lQPbJEntE8H8vnzWiN1P3Dd6fepz1CdH8ujU8v0v6ib/oZCxXE02PuU81uCxmcNZr2DGGkjmxGRpB1aJXgb3I2U9isfCPj3Qbvw94n1QqShLFzc3JZU2lSkKQ6orBO+dpG48EASoTGK92+ENXtdd8K6NdJX5j6LOzYcDigF+ZbtJacAgkg7kETiYnFQMdb8NPjbk819LSY9FpNYhb3681R4pGSEREuDORDLDIPbVGkIJILAasNL1S4t/LuPNu7Z1keUh4fw4QUpKlhSVBQkwmZBIgZqvqmgN3ANuu3ZvGbwJc+yutocTukpSlwqSUqTA7ggmADkioTtrc+3N3ZjJeycbk/dRo47C1a7yfYzVoo/t3nMZleExmSF67BfbiQQSxqEQa3nRPFepO3ZYe1K6cbUoKRuccV1AdIhSiAQoghRz1RyTOia/wCCNCYYDw0HTkObVNvEWrGRI3NqKW+tuQOn7sQDwKiG6chjK0zRRNRgmpRRxII0rRypDHGsar3RBZFij5IVAexR+1fzrcTrK3NyHrlS1mCUlxYMAyQoFUAE5IVIMyAO+rWegs24L9vZNMbt3Wi3b6UpEpDbgSCIiBBAAPAjEk4/MDcG/MBsHGyrYzm8rWF21hakUqLJcy+6MtBgMfXiUv8AtaOe4LU0jARRRL3MxIIFoL5dxqdraWrYUt5aWUbVEolxYESIHQCVfmAc1nFWabXSru9uV7GmGXbhRKQcsAOSQASpS1qSI5UZBkmt/vbeM/Rdv4PDns5xOHxmLJj47OcfRgqEJwF/ZzCe39qjjjgAeNenW0bG0Ix0ISjGB0pAwOwxivK7i/MccciC4tSyP/pRVH0mo3qepKaUppSmlKaUppSmlKaUr5YBlZW+GBU/7Hwf+fn8agRIiSPcc1A8f7evtwea/PX+uluZPSv9U7qplqEluxt7rV022BvzKUZZ2jSpuHIYp8PkXq2a4SaATy4WeWH3fcCCz7IY+zGTzjx34Tt/EDbR2th9IUStTZJKSCIUoCISTKY9TMmus/D7xWdHSi3fWpLG5W0JUQZCgvIKuDORjAHoIwQP6tDRwmSwOOuzqLecOQx1iCWteeKrZZXehY92xHZWKJ1MrJw8kblxG3+KV1oK/hQlwsOJdR/lQlxCgsSUKO1YAhOZKerkRBBJJ6Yr4pBq4dALjiA8jylhxBiRlOwYj1HKRMnmvdtH17bo2PLcbmtcsvG9ZXMMsCPE0tN5Zo0hnBgsCKsTGzySd7ySK3aCO/GufCdzclVrcKZdHUFNFQUOExwUkHmeeIPpcXHxHtn0BD7fmIHUpO5JgbpBIjme3/p5n+obNcswXbLPXsTcQZiZWhaZaEszOUgknaZpXJVJe90jMHeI0PjjVRn4Wagl5x43Li3SjBKlwpIz1A9III7ASYORJq0d+IWjpa8pKUNsCQlO8FQKhyAnuSSCVRH5EZGvoyb/AKfq/wDqreljZctvInF4vdG6OrufslxKlyPpDszL7uxGFP3JISlkcrSqxXFqt7scHYFkZyQ3QPC/gNWnXTN/dpQpy3KCncQVA/fESJhUSe4PtWg+K/HzN5pLumWG6LkKZcWQfw1bVKG4GJOyBIgoJxNfpuxhhGnceW7QWPgcsRyx4HgcsT4HgfA8a6pXHK+9KU0pTSlNKU0pTSlNKU0pTSlaZv8AVfekfqZurEdGPV9sDp4u6Nn9Otobh6cdZc7t/HT3NxbZo287Wzexc5ulKUUtxtl1bdzcOOizgilq7cymR9vKPUpZiO1Xt7gQkGMZ3EDgAe2e5gDv85q/sHAlS0KOFIO1SjACoPvgmMEAQcz2rQtzm3RZrNbjxk3kLJ79eOpcWFipKqLFSX3C3gIeUZmBXng9/INwkApKtwBCiM7cEDAwInHv60ccSXCSooUCTtBPUqCORGQOSORkmDmi+TqfbSOXe6hQs7iRb8SlgQSgIRQCQV7SeAPCkkgnVRtO0cAEGUwBgRAjH6HE9uKgXnFZDiklQ6pKiQeDnJOPfMZ4FQGKBGl91UYx8DmWYGOIAkgM0tnhVXwPJBI/B5A5qoCSeIxgiB+RHsT/AOVbkpJnfODJIiZmeR3EzHM9q3g/6QT0ddU4OvfV31h766P5jHdI6nRW5076QdUN04ifHUsxvzce78FY3IencmSFefOVqu0cPksZn9x4mpNh636l+iQ5SW3YyNStM4MATJycmTMFI59iR6VKpfTsGRIIPMYiM/scV+gPqmMAfIVTpqNKaUppSmlKaUppSmlKaUppSvPZq1rkE9a1XgtV7MEtaeCzDHPBPXnRo5oJopVdJYJo3aOaJ1ZJI2ZGUqSDAiSM8dvX0/KlYpOuP0Pfpc+oDI5POb19I3TjDbjyriS1uHpoc10syHvElpplq7GyeHwIlsszPYl/RfcldmkZ/cJYx7z+z8/X61NuX3UT84Pp/wAdoqwnM/0oP0lM1Zed9teonHo8zStVx/qM3l9oVYg+wIbtO4Y4B8KI3WQAn/E54OlN6v6j9DH9vkKub9O39Ot9I/035rHbo276U8D1E3TibaXMbn+um4tydZJacqFiojwu8L1jac6AlSEv7duopjj7VXtPKpT84rNjj8dQxVGljMZSp4/HY2pXoY+jRqwU6VGlUiSCrUp1K0cVerVrwxpFBXrxxwwxIscSKiqoUr26UppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSmlKaUppSuuVmVCV4J+BzyB5/kgEgfyeDwPPGmTxz+/X8+88RmoK4wSDiITuOSBG3cmZ4+8Kx/v6xN/YXN7rw26fTr1OuS08zfxe0bOytp7uzWPtisLNevJuPIXMFSiow2slXaI38XFka0eOkgySGVLUEJ1VHiC7Qt9t/RrskPLQyu1afdbKEK8tKnj5BU0rzCQVbSksqDwSUmB6KX8EfDN7a6PeaN8VPCKGl2Vnca+xruraPZ37BuUC9uU6Pasag6L8tacn+DbPPW9wvVR/hS3GnSp4Vr6Ieo7E9YsNgL42jvHbWSy97K4q1QyG3c3LRxeWwUckGaq5DMtjatTHNWytLJY2CDJ/a35GqRGzVqy24K+slp+sM6gzbLSxdNLfKwUuW7qQ2tqUOoW5G1Ox1K0AHkpBJG4A6J49+FmqeBNU1azf1vw/qtvpzVndN3FprOnC4v9P1Mpe0q9stOFw5cXTdzYP2d045al1htD4CHX0tqcP/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwAAAgEEAwEBAAAAAAAAAAAAAAcIBQYJCgMECwIB/8QAORAAAgICAQMCBAMHAgUFAAAAAQIDBAUGEQAHEhMhCBQiMQkVQQoWIzJRYXHw8SQzQoGRQ1ShwdH/xAAcAQABBAMBAAAAAAAAAAAAAAAAAgQFBgEDBwj/xAA4EQACAQMDAgUCBQMDAwUAAAABAhEDBCEAEjEFQQYTIlFhMnEHFCOBkUKhwWKx8AgVcjNSY9Hh/9oADAMBAAIRAxEAPwDf46NGjo0aOjRr8LKv3IH+T1gkASSABySYA/c6Nfnkp9gwJ/oDyf8APA5PHsffrG9SYDAk4Ge/Me3Y6NcclivDwJZ4YieOBJIkZ9/t7Oy/6HSiQOTHbPv7f2P8awc49wdUq3matcsIJIbM3IQRpMvAJTlfNlD+AZgBzwfcHnxCnrTUrCkjuykhZiO8AnjvIGIOZx30tVZ2RRiZ7c5Pf9jn44OZWuA7x69mNkyGp3opMBmqMc08SX5oDSyNaGMSSy07nkq+UMR9Z4pEVjF5MrMUdFjLHrlpd1GpGUZWZfUQPpgzkj579ifYGWu+g3trb0LxCK1uzDetMFmQtESBJ75YxxEckM6rncNcjElXK42zFwP4kF+rKnIHv9Sy8e3tz/fqWWojEhXRiv1BWBK/cAmP31FPTqUyBUpvTJ43qVn7SM4zjVRSzXk8RHPDIWHKhJUcsBxz4hWPPHI+3P3H9elnAkgxzwePfWucwcH2PPft+2uQuo+7Ae/HuePf/vx0kOhMBgTxAM/8/wA9tZ9vnA+T7DX1yD9iP9/t/wCelc6NHRo0dGjR0aNHRo0dGjXFNKIY2kZgqoCzMx4CqoLMxJ9gFUEnn9Af146xMEDuxCj7njR2J7AEn7D76j1sHeWzcmt0dQpJKsEfC5a7BLOLbh/BxjsdE0ckvAPnFJM7K/Hk0Jj48sXrWnTttS/rVUYxsoUAtRiSCSGEFRAIALMpkjIgErtbS9v2K2qUNggtVr1PLVASQu2ASWaDEScSBGDb+LobzuUFm1ktnzNOFSY2poxpepIPJmIo0/klgrBTx5uGeQghOVVmGaHV7WvTZ7O2ckKZW5p0g6QCNykMSQczIAB4E40u56bUtaircPTYSoL2zuyknGSQJcRI2ng8EDVbx2rVsdCs8NR7VyuB62Rv2XueTqpVmijtMwrgqxX04gT4kksz/UYu56hcXKNCKiJADIQF3DJMduchQOf9I0+pWtvRqIWckEABXmcjAXAziZMdsdtVD96FpwzVZwPPgqCqemAjD6kb0uSoHHAYFWHP28SD1BN1MUqdRKlTzd4O0jdNOAwI/wBUdvnGJ1JL096lZalJDHpLIAIT2YHv/AjgzwUPtWk2tlt/MJnbGLjflZHr41fnCj+5QTzuojRl9mAU+QPHB+3VXuLZrqqrG4VByHoyHzmZJiYBPsYkzxq02d4tpSqUkoNVJMEViGplhE7doMLjn3g4MDXY1nSsNp1aaOS1kMnPclM75DKfLO4kceAjrx1q1eCvEFHCoqlnbl3eRix6kemovTmqubq4quxA3ByO47meFGZDAHiRw1vLip1NaVKnb29vTRSKi0FFfccyvqYlScgYxu7HBredjvTYu1WxFmDH25RH6ORNQzvCqujuBXjs1EkMiBkUvJwhYSOsngEabHWbtNr0qtZWEFHrVkq0xt530toLSJETExAOoodItHbbWoO4UkMoYKxkH+oMpEGCQDiIHGLewW9ZrD2I617P3YLUQigHo3bHyFl+PpCV7EvhFMx8fCtaeZGHIhknUKj2a08QdOuqaU7tdjxsdlooqMRAL+ncccwfT35jULd+G7ymatW1qPWWSyLWEVKSHsiiAygcEgsMScacOO7zZHHeC5irBlIiQrywxfl95R9PLABRRt/fktGtRASFXnnkzT2NtURq9rVY0SFG6CaeYGGGNxbEEzE+8arwqV6QK11UMrRAJDR2kGYH2z/aHrrex4vaccuVxM4mrSMY3VgUnrzR/wDMr2Ij9UcsfkpIPKsGV0JVgeo+pQe2qMlUFWYKwU8AbRBXJw3OnSurgFfmZ5+Mdsar/SdZ0dGjR0aNHRo117UIsQSQMoeOaOSKVCfHyjkQoy8/ceSkrzx7Ak/cDrBYqyMoBKsDmO3bMyTnjOsMoYFTMHBgkSPbGkE2JbSLFvGVFSxWYCaohg9awlWXlViVoVktr4sCsjRxXI3MakrEV8umN7+XuKhd0NOsFguZIbiAFggZEwZHGPfdbVDSRU2FlX6RuKwZESU5UgAENiQCcatKrvH5Jkrk5o2LkM0foyVKs9YTtOW8YuDbeCNCjOUkQsZvAl/RLKI2rVKh1C3u69aFubZlwFqAsrGYUp6STme+ZHfFjq17K7tqFJqz0bgEH10XCiBJioFIgHAGWAHfjVPTuykDq+cwmTwlCz5OL3zFbMV67FlES5CPFJMasUgLNJLzL6BQpYjjXlhk17ig363T6qq4LLKuF9Q9JmnMExkHMGQRzpbdPtq8GjeUqrqcqzqjkhTIAcjcIPpIJ9zGBq3r2aq7HdtjB+nkHEqkDHypLXDyAlEWY8IjOOWVGcDg+3Cg8RVylau9RqVs4j07FU8uvvPG6MkfP3e0mFAUl89FBABNR1kKpjbCFgD9REkkgg4OAnMz3FyeMyxwtbDZx8lFahqyi1iMlBjKfquVS1cyBgNJaS+L+VhJ3RyjRx+czLG1aPUKoufydtZ1alZTsZvKrimrAw25iuwQRB2sZBEcmLQvTaTW63VS7ppTYbttNlLPiQFXBgkgYIMj25ubFHbp9kwOOyWyT5+rlswZMjUXEzYPBYPGwVWdLENy/NAl5nsqkNWpWS5fALSzCOJjKLUlnW8mjRuay1qz+qBKqDIMAlQSy4wAZAHtqt/mUp7qlG3NGmN4Y+lpIyzMAx/fAOT7xpj5C/h69WeOe9JHMq8QRwtAVd/YeLlp1kjHHPHgjNz7cA+xaNa3QVmWjVdQ7U5UFhuAJHtIMY7H3GY3pc02ZQWpAMqu7F4CrOSpCn1CASMQe+o5Z+/DeuSvWkrvBAqGxzNI5nWR2T0CkcU0ZQosrubDwIQhMchnVei06Z1S5BPkvTps0BzCiSfowQYYSJyNvuDqWbqFhbqh88b9rElEFQuowyH6cOOTAInB13qHcvXqWIx+uSXosxmJ7lbHYmrBae5fns3rCV6lf1UaSsGLTLHI0k7tEvlIYgqlV6R0a3r2VCnRuL7dbCGfpwBqKzLkE1Y9IGYGPZuRNC61Wo3tWpdULIKrQoqt6NzCSxCEQsT3AAPcTGskGgahFpmCTGBzPamkFzIWTx/GuzRqsqRqPZK9fwEECgnyRDK31yNy+urmpdVjVeFWAqIOERd2B7kyJPf2AAAgVVVEKu0ckD3JJ/z/APvtfHTfStHRo0dGjR0aNHWCJj4M6NK3uFWpla893xEc6PVWdiyfLWI/J4ZBKnDQ8+o4Dc+JKhWX3UdR96lMbSymWkAqSDMZMDkxEnmO/ttosVYwpYkYAIHHfIOkzk6NxK/FbJpYCIoMd6tDkIw3HLPFYPhOnieSGBYrz9+eR1X6oCuNjA54LOIM4nb3iRgDvJk6k6Tqo3VUIzghym0RBEKGJiAcDj5yVXlBla7mWOjjXdefqrWrNXz/AL+JPgA3uOQPvySCTyddWvfUwBS81VUAhBWcU2JMlthH1NEEzJ+CBLtTaMwdFpqWEmrUXznB427iynaPqA/pJzwIsixskVOWY5TV5ZXZQDPWuS2JVQnlvCJbtRGk+/pEEEEjnlSfFo951ISyg02zOQ4aIhST6p7ZPHedP6VOxZArsjooIwqoQx7kA4ycfVJOrabubreHuF46e5V67IFmRqkMxdSPGRY0OUnANn/ly8hSAB6TRMQBoW/6mGU1Kj1KeWNMFKbKTJhGVAdonBMkSeedP3oWVakVNFWZQNjGrVCGMQygxOfciP40n9w76Ymvaa1idK2i48LExrbylehWtMzAepakF29KkSp9IgSNnI4LOgAHWi56j1fdU8iusMVFMGko2KCRDuASfTIkQSDjW61tOmBIq24eDJfzam0SskiYmB/SRBAImdKPb/ih2SeIQa5261vDgIQ1rM2vzi2si8fVEOIoVCgEp5xyPzwS3tx0/Sp1C4QGrX8gimF2UgYLYE5gx9w2cTGdalo2tOUSijyx9RxFMZCE/wBRBHbAIwc6Sh7ud2s6TDe2xaNF5/WXHY6pF8vBIwKo8aSIsSPGpPpn02Rf5wnl79SdpaglWZn3jO8Vnn0gY8snYFJkHbAGADtiGtzcbX2C3pTH1e3YbjImO+TkTHOpL/CZqkW2d6dKrSWZcjao5E7Hlbd2VrLRUsGj5CVSSDHG9yeOGvEsaKS0vkTwrEWq2J8ottA+pd8eomTG4mSSQefnsNV69YBXEmWgQOxiZGMAgkNmAIAAPOfZf/oE8fbkkk/1/X+/StRGvro0aOjRo6NGjo0aOjRqyd/rpNr80skJnSnLFZkjHBLRRuGfhT7MykJIqk8MU8f199Fws02IXcVEgRJjuB9xz/PbWVJBEHbkCfYSM6jnko8VZMj07MlGyQS0cUjQOrMCQzVZh4D+bkgIvkD7Dg8Cu1PLDBis1DlhtgLkwA2NwYcx2AnOpEklAMOBkmfVkewIGeRjAx86TV7FbBVy2RsJno56NitAI6tmlJ5xWULebiwk3o+DoQrRLEsgcsWcgAEuPM2rUWACowGBjJ/2HbA7RiNLt6tuo2NSbfJMwTAOMmRmZmQe0/K4z/7wD1B4Y+bjkkB5U5Hv9ifL2PBPJ49/bj256j380qNpkcy4IOeZ7Hn5wTqQom33GQSO5EAjgCR9zPtmcaQ2yT7AnqFadBvY+/zT/fy54JMZ4HIJ5AA/uemNRqozGWJMcDM8H7+5xyTMakENJZAY84EEgfEgcz/sR2wgtkn2ZvV8KtCPgt4lrLNyOQAWCIQvPix4AJ/6WDEeyiWAO0bIM8TgDJkznn+0HtrfRFBZ9bEkGe2SOFBOB7nOkLmn2GxJYU2aNdYnMbiOCZmb9Q4ZzGjoxcFXQcMQT5eQ8RvUsvlliWJ7wQZj2J9oEGQOYxpSbH3gEqVMgDMzJJJiBx+5PHOuvjaMayI2Sy1iRPEF0EqVYv0IBVT5cEBV4BBJ/Xj2E7blAuCS0mFE8HBXESfufeO0tq2xd7FgWCEgHBJ9hGIBnHznWXr8OrUMff2LcdyirtXiwGDx2Fx38Ixx2Z87YsWbVoK/1s0NbHrFHI5b1hekPJES82GluFuoIAlm75kROPbtmDOq3fsJC7txbJBjcscAQBiDBmW985OWzj35/sB/45//AHo1HaOjRo6NGjo0aOjRo6NGqHskfq4PJJ4CT/hZG8GJAb0x6pBI9wAEJJ9/bnlSOkOJE5x2Amf8/wAaNRzzVSlfiJngikDAeLMoEiexI9OUcSAqCB/N7foeoC6CBahI9QaEKgnMTkiREzIice+nyYCsHyZBURH3954ImcfsdJPMa9FUgtJTyGTrMzTSiSS5LcWN5z/6S2vPxijYgRwB1SMcBfp55Yo2xiDuO5fp5GZjgEYP8Y1u86pyCo9iF2t8CcxBjgTpS5rGZRYz45lmb0gC0tRCHPHHkRHKnCt9/c8gAkj3HOKqMCSohZECZIBAwDg5kx/AB4Dq3dBtDSzQJJPMxyQMQCSJnA7CNR53pc9jaN21DkKE7QxvKElqui+Kn7l1nJXj3JPv7A8+5HTenQevU8slYggQDuJAmGM4wDxzJ06FxSpozEEEMNskkZgSZI+cgxj3M6jdJY2TOYHG5exkYMfLkqqWJ6sFZ5fl3JYNCsrSRiTw4Cl/H6jz/KPq603FOpS3IR6oMn3UiGiY7HBkzwIORIWz0qkMcg54jPfHORJB7zpQZvEWpZfKzmbswDMSkKxQAgjj7KHby9jz4nk/bn7dLQb9m+Rs2kT79z/z5zxp7TFNSwQEFpJnjgnBPsPYCZIHGqhruv0TYjk4l8vVSSWSy/rzP4sH+ozeaqJCPsPcKPHheQRYbI01hmXEbc8Eke4jIM4jse8zEXKAsxiTGRJEyT9PJyOw7YzGM7X4fuOEPbrcMp4+97bY6SP91aHF4imvCn9fGxZnB/QH7dTQIZVInbHpmcA54JMGf44GNVy+I/MMMDaAg98e/eexnONT66zppo6NGjo0aOjRo6NGjo0ap+VjebH3IIwGknq2oYw38hkkrypGHP3Cs7KCR78E9IqGEcgBiEZwpMSEEnj/AJMaxIBUEwCygn23GAc451jy7bd+9I7oarSzeKylWGy6SQ38bZlVLWPvVJ5q1mvPC/EiGOaNyHKDlFHueV5qaX9rf1KlO2q0/NBO+izgFGWJ2wWJ3EmZzIOManbrpl108qbqnWNNqa1KTJTBp1VqCQWaARMQYgRxmDrp75vGqa9q2ybRm89jsXgMDh8rlsrlZbUXo0aeKoWMjclJBLyyJXrO8NaIPZsugr1o5JXRGfUUf8xQpNRNSq5AamFJp7M7XLAk8yCeJI4GoTqXULfpdnXv7ytTo21shr1fUFamgxTpkudh80kgAw0rABwdYfe5v4x/wO6TizOncTO7bbVHLU9b1eas8bIB7zybRd1xlBZhEzUquR9KRvCVI5OEfdc9LrbpZ6NOm/BRjv7yIaYg4EjJP21zZvxu8G2yqtOrd3rsNxp0KDK43GRTLPC+gekkxLA54mGGb/Gu7GbjWvVtY7M98NlpSJIGvYvB370SxcMzSmOjqluMosf8RvG2w9McK558us2nTQlYFGr1MRu2Y4jjnBJzgd8EjWl/xo6ddHy7bonVGpZLVFNIFQVYwe24LBzH9xqy9Z/F9+DbZK1fDZDP7fpFmpE8LjY9ZE1SH024KSJhr17NI6SBlPqYBBEI3E7w+P1ab3p1WtXZ6DUizDa1KqxUqpkFlyCABJ9pgzmNWnoX4t+G6xWndU7ixYwo/MoXLGY9Bp+kEg4DTk5PEyE0bvl217v62dy7e7TS2PWzkclQbIJHboSRWcZMI7SS0spXpZCsqySKY5J6kUU8RWWu8sRDdQ5pVaFYUatJ1LMFpvTBZHGApJMx8AH5iBOurdK6703rVm3ULGulazDGitWkwVkrAlSlai/6ijaCRUEAsAYiDq417q6fhazW7+ex0MKIxDC3ESyjh2IIJJC8cFh7AAlvc9TIYW1IeaSpHqAIiTGAJ5ABgEYPOlotS8SqbdRvAO1iQdpLAAjaSTMmDED+RrYL/DVz9bcPhX1bdKMZXH7ds275nHTc8tcx8OwTYmnab+iyxY4+C8nlFDA+56mLaqK1FGUemCAZ+QR/M9uIg6rfVaPkX9ekYDU/LVwCfqNNWJIJMSSSBOA0fafnW/Ufo6NGjo0aOjRo6NGjo0a45eOE5449RPv/AGPPH+f9f26SfqUe8gfYg7gfvj+P5wdoDMwBAWeJggiD+060jO8PcvNdnu+/d/UMdkbmLbXu52+4anNTnngIOP2nKxqwMZjPkYSskY4ZHReVJAQnyd12/wCodE8TdSq2l2aCfnbgBGcgD1naFAI2qCRAzIzzr1r0Lplj1nwx003dulc1Om0GVtqloWmN0yJgnAM8DvOcW3x4/Gb3Vbs3c0aLI5DLY/Y98svcyuVeG3brza/jsE+IFe8yH+BSfPXrkaTxNM+WrYtI5lrC0kne/BPUL3qXTalxdVqbubdSNhiqVABBVyNylmkkz2E+x8c/9Qfh+xqP0zoih7Tpztc3dxUHoF7Wt5ana0kWR6MBoGZyMqdYzvhy76a3iu5cb73FpkdfOa/e1+pndh1+/nodd2HMV6UWJzNCoLscQ2endrX1weRyCZCn+Z5D5W1j5B8tkKN8trWhWddykbmUKrncybgJM/Vk5x8kxrzhQ8GWNC4R7d3q0GohTRrmfJaqfMYqpB2lXYbMD0gyZGnJvHdr4ne2He23gu0+95/Z8DQzFiDC5a1tW1v2xztCvj0ksZjbMNLn6OE0s67deV8tQyv5LHhrFH/h4wzehNspU7ixvQ1OnUqqrE7WdvL2gw8KCAIgkSOBOBq29E8O2djWqms9Sq2w/oU6jCnAGGG3HaCTBkiMCBF34te7mi7dsOx4jA0deweo3Nwr7VjtlxOpVcPazu2y6rDjd1u4e1dqz5zL6fn9nS1la8kt+9Ss+lBfotVks2IZF9Qq0nqCpSt6Rp7c1RTAfdGQWgE5j3AwZPabpeGbK4eowprTdVkCmoVm9MiXA2hgRAJYnmew1aXwb/EduGjbHsOo07NufDbVgLGPyTwzTVmWlVTzrtBYiKy1hUsIZfT8mK46zkwQksFR4a11dWHS6ho1Cle2f8wvIAQtsCg8xDe+DxMxroXgLpVKw8QJRogPb39IULihVIY7gpYOgbAbABPt9IM6nnD3WzOSrfLG7bjxsCeoarWpGMgiUs72ZnYSTkKAD5N4Dw91JB5pLXFe4H6tYvDbAAxM9hnJ7f47nXomjZ2NiaaWlABGIao+0KSQAQhaBMnAHMDgSRr0ffwzNWn0/wCAv4UsNYWJZ37LanmpvSHiGl2eKfZPUb+sjx5WLzJ5PkOOeAB10SwTy7O3X/4lJPuSJ+/t+0ZOuO9Wq+d1S+c5LXFQkj/SQo5g8Adv9o1Ozp5qP0dGjR0aNHRo0dGjR0aNcUv2X34APJ/Xngj24/349z+nWmtMEgmRTqQByfpk+5gewx76SyhtoLR+ohHzBJiO/GtGL8UHA2NU+Njv/TVfQhvdwDna5VfTSSPZNbxGbmMZ4ALCTJSJI3ILS+pySwJHl38RbYUfE/UQv1tUo1lRx+m6OgMbjj1EHPt3GRr1l+HNY3XhLo20hyBVp1qbNtDUqVVkbcezBhtUHLKYAMnWF/vvide2XKR0e5e+VcNq3p6NktR119B1q7TbIbZtdnQ9stfOYaxp2xZD5S/ruu5u/NezN6LD4qzes2569Kkvr97/AAzq23UvDiVlt7WjWp1aFv5bIS1RqW0O6hexBED/AEksIIJ8ofjjY3PT/FdS0uLutc2Ypf8AcbEOjL+Xp3FYmtapJ2v6FO1VMmfRuMjUTt10TUdBxVrLa7Z7b5awg1+HNx4urt1dK+IyeV7iYPK37rUu68ivgsDntKpJlDaoSRflG0Y7JOPl7lCS30Q0GpAsnlgm4aTTBFMesgAE8COYIEkdhrjnkqWeoo8wOzMkSzLSJ/TBEBhtQqrYiVI5GrVzG+52XvPie28cemmXY8pJhrfdOLH5CTHZv8i1CC/X2TVcq+wvmbuvvSWrj8SXyyNUVaymd5SalXDV3Fx5bZy3r4Vip9MNwwJggTmJ4jU9aW48sVog/wDsBIYKeGYc+nJzgzMg6jdnMNiNhhrbPu9fUa+WzOCp7PlLF1952TNV3fb72v5TVjJc7h17T9wcRhsdNuFzBzIK6YeaqkrxTW4JXbeWhmq8nzz5hAztKEmTzBMDECTA99StMLTMioSlLalJDuDBjOeASCDMnJHJ2jXxjMBFqGw15tC2jRJsnYzceCiva/WS7BYx929hIVtw47YclsQsyZbEZeTKVKclQPi6lO+MtYeWnappqu6FFLG5ZkWorUmL0mxvCncFgSTMY55wOTqW6W9Zb+0aixpV2uFSlXCsRSdyV3HkQJmZ9K5iAImbhZ7N21cMnovBcSGGtDHFHB5vPJJHO5rwLFDCrtJCYooY0ReJECopRRypa1Ku4enS8pqjsnkqJVCCZkj6fjsR78j0gKNa3I3VfPp0KCUqlSIL3C03LVQpP0PI9ZBEzBEa9YrsPqr6N2V7Q6XKytJqHazt5q7lAArPgdPw2KkYcfcNJUdueBz5cnrpFGRSoqR9NFAY4naJA/v864ZXYVK1VxkmpUk85aozZP7/AOfnTa62616OjRo6NGjo0aOjRo6NGuKUeQA+59+APuf8H/t/kda2kMH7KlRSe4LKIxz/AEnPaNIYbioPZlb7QTJ/2+/A7601PxucWMR8bGWMoWOts/bbQ9kgkkQKskxgyeDtlD7K7o2IhDuDygaIMGBA685/ijRVevLVaF861t23AfUdrfBmTM/+JI16U/CeuX8PtTBJFC7uAwBgqpVahO4mYgzGRkzmTrCtc2O5iljqUsjcrxSBnhiiszPTZ3Yh5PljI9N/UYE/xq7h/ZXB9kNTsOrdS6WRbWtzcUG81TTS3LxSrwru1QKQCroaZ2ghiSPY6u3UOldJ6uFuryyt7z9GopatbU62+kwKhaRIJlDJAkQSDgSRGjuN8O97cLsG4ahNs+BmzGSsXI6QWrndUt/L+UjUIIJsfayWv4uOnUniFmSSxZsSQGOLIUeJrQ9I+G/Gl/dW1nU6j0i6CXMWtK5tNtzQuq1JR5n5mgPXRkL6tu6RJncRryP4u/DPo3TKnUm6T4lsBc0S15WsOp1l6c9rTuCWpm2rgsKjKzALSggGB8rETYezHeB8uuMq08HCUuCGahf2PFrNekhrzSvF6Uek2BjpH9SveWM5a60cEbMsjQ2TItsPiLpNe4FLfSSsWAFBqb03LSRFOky7scbUkgAAntqi0vCPiWjTevUph7f8vvW8evamnWpAbTWNU1dvqafqKkAiRq0Mj2S2mOxDkdgqZ+lWCtW/Ktehqz1vWSa07SPnWxUhHpJFJFVkbmCUVLD2qkdnynEX1bxCLJQbLp95cl6rUQy29Ta9emN1RD6Ay7F9TExtUTMjVr6D4Ua/LWvVOtWFpSpbGdGrUvzBFQSkMGKMj8FkLDMTrt08/ZorDi6EtuhTqoa4gFx0kJBKu1qSH5ZZJ7B5+YDJGjOGUQjxYdc2uet9R6jUe5qXDW9JqhppRG5aaVMg03QgMIAgyNpJgnMjuHSvDvSem2qW62iXNSilJzXZV3VBE0nVjyGAndMwCOImS/wy682/97uyejsQP367t9tdMCnmRR+9G9YHCGcxqD5Rxx3fVceHHphgSByenXTQHqWoYhCKhDIYhmYzjMR3wYgxyDrd1RvJsOoV+N1rVIHBQUxAUATBjEdmHfnXrYQLHFxDEqokSenHGoAVI4yEVVAAAVV8QoH2HsPseuoKCIAEKoAjGPYck/T3n5764UQQDn6juP8A5Nn/AG9sDgca7HStY0dGjR0aNHRo0dGjR0aNfDgnggclfccnj39v8/pz+h6SZ3KIlIYtiZgYHPeSMiM86Q4aDt+qIHbkiSftzGJiO+tSn9oY1q3iu9/YXeTWlWjnu1ey6782ImEEuR1raIr0lZ5gCJJosflknWEBnELyMigH6uI/ipa1N/Tq/lSzWT0CyqD+stQFFMfSCDhiY3GJxnvH4Q3Sra9Utmc7UvFuGUyCaVWiaZAUYb1qAyiQqwxwROrTW2uXErewt6zPPNhshla0BkThrNCxcmyOOjMgDeZWKyKsMgUecaBm4ZeqFc2JuKtleW9QCnUpUWYQABUppsacA7ywnOSADwRroNp1D8kK9nW3FaNSoFbZuPlPlNh+QSe2RAAOq/f7n5zE4mlXX05cdEVuRY3JQV7UKTKVnjjsKyK9iITxo0lWeaWi0qvMtZmKs9t6T4x674coJZWNxTJoV2q0w6BtjPMn2kBsQZEkYMEVHxB+HvhHxhcHqHWemCvVuKQovVWo1N0VSTTYBSN7ABdqRjIkjGkfmu7efXxSJaqRelJX9BlsSQpVclzU9OezNGkYkYShqogmIhjjaX0YUr9STfiH1+4dFqmwT8rUNenVNjQ/M1qzEM5aqVFWmhYwgLwfaJ1XaX4R+DrSnc29pSvhbX1q9pd0T1KvXs6ZaoX306FRiqEqQPLBAWCoOI0oM93V2TxgWpYq03rtNLXmigDv6s9ixclkmlutdew7S2Z5GayZShYmMqfFg+Txv4gqrtp3lSgPMqVgCEZTUqrDCCu4rtkESDAIxOMVvw68K0TQV7BLlre2t7Gk6O1NjYW6EUqLw0Fw5w8GQQSZABQwykxuvI5HlYlEjjggEykt9X0+KHkks3hyqgqAOAAxo+ZUepWJJq1SKlw/C1KhBBKAelR3iZ/iDYgTSUUlWUpmilsxJmlb00Kig0CTEiHME/aAMuX4NejT9zfxIvg71+OnYyFah3kwu45D0oPmflaPb/G5Pd5rtjnyWOnFawFSvNK4AD2YSQpdOrJ0RBWvKIUH9KqrVMQF44x6iASZGADzxqt+Ja/ldHuixRRXo+Ugkkl3OAQAIJOfYf7+o/F7sX9vqHI4PJ4Y8jkf449+P8+/PXSBhmHYgGciYEZB47x3jn2HGwZEzIaCPb6QCPuOPtGufpWs6OjRo6NGjo0aOjRo6NGjo0awNftBXbS3tnwgalvONg5udse7OGu2rvotKlDCbbh8nr1x7BUDwp2cmuDozFpI0M9qqOfV9Ijn/wCIdHzejJW2hltbqm7jk+W42NBjAUwWmQYAOduugfhtdeR4ga3naLy0rUlMwPNT9RQwmGBAIHux7Z1o4ZhGikOSyOIt1ZVmNV/Oq03rCn6iidyhaSKEKUFZpo0kmhkj8U5c+PB6lOrRrU7encN5VF2JCFgrbhuOJkGSBJx9o16DpmnVpG4r243102hjtOEJUMY+ZJXsSAZ4K9z+ZpWkkVLcTOSyujHxPsvsrxOA5KoW8SVDK4PHieT0+CsgVlDtUYfW+SeTB7kAEgZA/jSalSiVJACA7duyPSV4ABk5zmODg+yMyVWjTNk12nPzEsthxLdml/izkFmX1y3oxhhyI1ICAEIAPs+p1atU0yaFMVKaCmrkAKwWIJUCSTAkE5M6hTZ2dJahS5qxVY1GUkgyxkrJ4EmNsScHETpVZ+aFYDIZgAX9MM1hDMXZGfy8Dy7AhCGKLwpIDnlx1M21Np27DI7jgE9wDnEnPIjHzGVDT2OwqAmm+1ieWzG0SYHxEx8SNWXXnazOFgSSdk8QCg5Vf0AaRuFDEH3PkeCTzwDx1OUqJRSxYAekGQZGcntGTzPA41F1awDAqpcEsDBggMIODkZ+8xMRrbC/ZYe1OWzXxj9ze5j4aaxie3nYnM4q3nHiLUMXmN/2PA0sbja9sqyNk8hQwWSmkhBjkXHwPL9Vd+TcfDFuRXuKoClQBuMdynGZg54kyPfVH8c1lFpa22+TU9YUEkhYbJgEnJEn3gjiBv2qpU/f24AH39vt7f8Awf1/v/bq6wCxb+oiCe8a5oq7YjgLt+eZ+3/P5++s6Xo6NGjo0aOjRo6NGjo0aOjRqCf4mPbnM91/gR+J3RteoWMlm8h2xyGXxlOoT87Pb1LIY7bVjoj/AN8YsJKaQDKTZCLzw3UF4jt2uui9UopTFWp+W8ymhwCUaSJ7QAScERE6mfDtwtp1/pNeo5p0RdqtR1+pQ/pmO49UciCQZ15zeZyFyEyFoIstXCl4rNcJDcEUqrwWBU1rAlHiyshid0PEqp5DrzcGoGq7sHWqzQyRgkgKxUwDtLAgAREEZ7+pk8z8vTB2sipggwWUktLATBjkA4kHvOkzsOQxUpYWaT1S4fyFvHkBn5IAaQRmMl+OWKykFV4AU+Xk+pI5DsORlKXaJ4nBlh8yCQO2mzPRYNuGx6cYy31CZBJxjvxmM50kszY14q4DYxuHJAUAKQjMrqCfb28uGPB5ZSpUMGBfUErySETcDBDGNp5AnjHxn5nUdWNtH1KJUzMiDGMdzMAjONJLM2cHQjtvHPDacvPKHjrh24eQskQ8FZQsKn0kb6SyopIJPl1PUKdxUMoipiNobEGZyAsSY+e49jADyKNOqtR2qbtzEkARncFEEzzAj3zBAi38VkZbE8PyVUiIlSstsmMcMvJb0kLOfuB4kKB5Dkgc9SYptSU+c5ON23kMAJVSeRkQD30zp1vMzTQAEwDyIYAQfnkSc9yZg69Aj9lN7V7DrPwrfED3Wy1OxBie6vefD43XbthRGMtB211OTF5W7TiCqTQgyuxy4yOZfKJ7lK9CjNLVseN98M03WxqVmG1atTcozwoIkEmSDP8AIJxJ1zPxlXSp1GjSDS1GiVcAkhWY7s55I/xzE62qOrJqo6OjRo6NGjo0aOjRo6NGjo0aOjRqh7LhoNi1/OYC07x1s7hsphrMkSxtKlfKUZ6MzxCUGMyJHYZ0WT+EzqqycKSetNan5ilZjcr04JiQ6lTn4BJHz37HKv5bI8/Qwcc/0mcxBAkCSCI15rPxz/Bj35+Azuxk9G7m4i0NBt5O9X7d9yrGLttoG9YBZC2GsYraoR8lh9jeAwQZ3Ucy0GQx2VMpp1pqE9OSTgPXugV+kXrGvTqLbTFG7FJqlJgzYWpVUQtQcMYAAKiNxYa9IeGvEVt1uxpmhXX82qqte0e4CVVZFVWqU6bQHQgAiDkgiOSYC527bjglazipxF4lJHr2YbYVGXhnVTJWs+QPJV4YGMZ+pPLj3ZU7epK1EBEQR6gUYgkrtjkYGCR2I51LVq43MuWkw3oCtiRtIzxJCnOfjGkTs+dxtaaOlNFdincenXqjH3XkKogY+IWEj+Vixdjw/n5FiSVXZRtrh2d1fbBJeWG0P7/ucBTwM5PLavWoUgENJXY/TAYsRE7iQeRwYEdxHOkXsWShksvWfF5F40kQSxGMVS0YcMypJKfFGkjICkqQGH3PA6n7S2qgbhchcQWOds/1D4XuYxA/aDurimYm1YjMgMdxHsCcASZ9x8ETpifDb2G77/FJ3W1/sv8ADv2z2DuVv+avJAmvavVe6+EqSPy2X2zOMPyTTddx0LfNZLYNjs06lWlHLPG1iRVhax2/TK10USnNVj9daoCqQZ+jbHAwRmTEgcahbzqlr09C1dhR9O5aasGcRJUcTzEwAf7HXqyfhifBvb+A74KezHw25rZKe27dqNDOZredgxUU0GDu7pueeyGzbDWwMVgCy2Bw1rIrgsPatLFbyVLFxZS5DBauzQpf7O2Ftb0aAP8A6akc4YtkzEbs94+R2OuR9RvGv764unGar7hiCBEARJiFAGTPuNT+6eaZ6OjRo6NGjo0SPf4/f20dGjR0aNHRo0dGjXz4gkk+/P8AX3H+v9vt0llDCGHBBGSII4OPbWCAew4j7g+//P8AOrX3DR9O7gYG/q29atr25a1lIjDkte2jDY7P4S/GUZCtvFZStapTfQxUM0PqKDwjr0ipSp1VZaqiojCGSpDpA/0sCo+8Y7a2Uqj0GD0Xak68NSY02H2ZII/xzrEl3m/Ac/DW7vSXpYuzeZ7U3b6uZLHZves7pVOCaQh2sU9YnkzWm1JPIsfCPXhWdmZ5IJHCkQtz4b6PXT12xohjIa3B3fICgwqxM+kzJ7ganLbxf1m1YKt8tU04AS5UPEQwl9u5jAGWbMR86gZmP2VH4H8rmnyVfv18V9GqfBY6DbN2svukaspZDek7YQvKJAqqSaqH24IYe3UdT8JdMXcoa98tzgb0QRMgkEEjIz/9ARJHx71dmDH8iziYii8LIyZkbvcc8wM6cOgfswP4W+qZWLObrrfe3vRaE0crUe4fd7I4zAuyqUML4Ltdie3VWSq/PLQWntgkeJcoSrS1DonTKG3bT3kQBuBEzzI4EdxOZJ7Zjq/ifrN1u/WNEENKrtkKefVmZ7AAQDGTk5sOw/wvfDv8L+oQ6D8PHZjt12b0+EKGwfb7VsXrsF1kZ2WfLWaUCX81aDOzG1lrd2cufMv5/V1LCmgChVChIAChVBAzDQM5znMweQIg6lWrVYtVqPUYmZdix+Yk4nn76fCqFACjgD7Dk8DpW0TPfJ55n31r1+9K0a4JmkUfSBz/ANJPPHPH6kBuF5PDHxPiASQRx0ZJjAEck98ziBwBPMk4A0hsnaCVgFi0A8TiCVBB9twJOB8Qap/FV3JpX9nxey9hN6+YqZvL47VrOva/td/DXKtYmnjbGw5WfXQacdzKkGzbx9S5Vq4YPloTbBirPVl69eK1elW6Peea1Wqlv+Xp1nohEPlq9aotFnpOa4II2OGtoropJCa9E1fwX8MXNDpN50n8UvCq272djX69S6t1HpNv1G2rV7f89cU+kWVHqbJetRsFCrb17ilWqdXf/tbtRcGsG92g+IPGd2MZrN2vq26YWxn/AM1rWIr2s5pMdg8tr5mqZrGZfLWMdTq4+zBlKt/HwRTt6jyVFSdK9mwtdJDp3WafUKVBkt7qm1ZaoIq0aoWlVoNsq06tQ0kRSKi1EBmPQDMsF1R/Hn4X9S8DdS6xZ1+t+Guo0OlCyr0qtl1eyN11Ox6siXXTL2ysFuqte6o1un17O7qVaS7FFwRTetSp+c3/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGAwQHAggB/8QAORAAAQQBAgQDAwkIAwAAAAAAAQACAwQRBRIGITFBUWFxEyIyBxSBgpGSobHBFSMzQlJig9EkNHL/xAAYAQEAAwEAAAAAAAAAAAAAAAAAAQIDBP/EAB8RAQEAAgICAwEAAAAAAAAAAAABAhEDMRJBEyFRYf/aAAwDAQACEQMRAD8A+qUREBa89yCH43jPgOayWGufC9sZAcRyyqrZeN7xuw8Hm1xxz9VMm0xLTa5Gz+HGXepWjNxFMM7ImD1UHYdcJ/dV2uHiHB35KPsPvDO6N7f8ZVMs/H01x49rDJxJb7ezH1VqTcT6g34XR/dVcfLZycvcPq4/Ra0j5nHnI8rG8/8AGk4Vvi4m1AD3/Zn6q2ouKLH88UZ9FS2SWMDDnn6uVsQm64+7E93+Mq059+kXii9Q8Sxu/iwkehUnV1WrZIDZNrj2dyVCgr6k/pRd6k7fzU5S0mV210zxH3LWnJ+3otccvL0yyxkW9F4gZ7OJrc9AvalmIiICIiAqVrbdt6b/ANEq6qpcRMxfk88H8Ffj7FfkkcD1+0LH87kZ8LiPRxCyzNWnI3mtdG2wNQl/rk++VlZdkPV0n31G7Qs8TeijSdpeGy849533it+vIXYySfUlQ8A6KVrDoo0bSsAHLkt6MfCPErRg7KQgGZGeqrUN5ERZgiIgIiICrnEzMWWO8WfqrGoPiZnuwu9QrYdipzBacgW/MFy7i/5Qv2ZfMGnxskDMsf7RvPcCQSPe6cu/VbWydq5ZTGbq/Y5rLEOa4s7i/ii/ELET21arjgSyPZBGfQnr9BKkdPvcVWKs1ihrlO4+Fpe6GGw6R/oBtxlU+SKfLPUdmgHNSdcdFw6t8oev6UyudYou2zs3xGaLaXt8QRj8l1DgfievxDWGNrbQBc5jQdu3OAQfpGR1ykzlTjy45XS61+ykaozKPIKOrqTpfGT5KtaNtERUBERAREQFFcRNzTa7wd+ilVo623dp8nkQfxU49jnXFE01bQtQmrO2TMhc5rv6Tjr9HVfMOoPfLakfJnduIwe2Oy+iPlHitP02sKtuSuySw2vM1oDmvY/lzB64OPxXI36LCa77DHUrEYbI4u9g5udj2NcPdcOm/JPkVbk+3NzS2sGmW9OtaAKOo2nwXoY3Mqunja5jCXZAztLg05+g+q98FuvaHrTLlyxPWpRP9o+OJ5zacByY1o+Mk98YAR9b5sdSDoKpioOeyUkyHGHNaNrST1Lh6d0g1SSxR1GaKKOOGm1hcI5HxmRrnbRjGD37rNn+bRWtW7lq1/zgIsPfI2vnnGXu3HI7E+fgrT8mWo2aPEFVtXJ3vaC0fzAuDSD5EH7QCtWHRazZpmT1qUBryxR2HPllIiMjS4HkfeAxzwpWvpVvSJTYiq1op4XED2Ye85Y32hPN+NoaGnPfPIdVGrvanjZl5Po2BSlIcnH0Va4Wdbk0OjLqUoluSxNlkcGhoy4ZwAPAEBWemP3RPiVrl075d/bOiIqJEREBERAWvqLd1GYf2lbC8zN3RPb4tISDnerUa1+u6vdgZPCSHFjxkZHQrnnF3BO8Nfw9VrxDaRLEXHDs+GT378+y6bZGCVFag2cxD5scPDgSM43Dwz27LeyXtXLGZT7cEsw2qlqRmoxMr2We575sZLTjOcO6fRjksNO0xsswYWxGXBe5klj94eozz54PiuyW2ajO8fPNMqW4choiIaSOfxZOfsXhmmxAVJG8O1Wl8hEzNgcWjIAPgO579FlcGF4vxzrSdJ1TVpjDp1QWIWANEpln2gbcc8vGOXLnzwuq8O8Cac3TWt1Wu99iQYkY2y8t2jk1vxc+QH5LegdqNd7oK1SB0Ac7Y4YYGjPIBoPgrNVyWNLwA7AyAehUzCRfDixnbfpRthhjijGGMaGNHgAMBTNUYhaomDopiEYiYPJRk2e0RFUEREBERAREQUi+3bPI3wcQo6RTGtN23ph/cSoiQLogwrLGsayRoNyFSNfso+FSMHZVokIFNNGGgKGrDLmjzUys8gREVQREQEREBERBVeIm4vvPiAfwUHJ3Vh4obizG7sWfqqfanuxSPIrRzxZJbsk2ux2BB7rbHobKyRqJOplr5N9Sy1jDjcGZyfILLHq0QzmC1y58oieXip2jaeg6qRg7KvV9SEjGOr1p5Q4ZGAB281M0ZLEkg3wNjjxzJdl2fRRTabpDMzPVS6i9OGZh5AlSizy7SIiKoIiICIiAiIg17tSG5D7OduR1BHUHyVaucM2ASas0cjfB/ulEUzKwRr9C1Rh/627za9p/VfrNK1Idakv2j/aIredG7X0u+cZruHq4f7UrV0qfl7VzGDyOSiKLlRL14GQNwzr3J7rKiKoHocKDjl1USRMnpuIdndJFOMAgcuRHREUWNMMpNyzaYhYW83PeSR0cRyREUs3/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHQAAAgMBAQEBAQAAAAAAAAAAAAcFBggJCgMBAv/EAD8QAAEDAwMCBAMFBAcJAAAAAAECAwQFBhEAByESMQgTQVEUYXEJIjKBkRUWQqEjJGKxwdHwMzVSU3KSsuHx/8QAHAEBAAIDAQEBAAAAAAAAAAAAAAMEAgUGAQcI/8QAOhEAAgEDAwIEAgkDBAEFAAAAAQIRAAMhBBIxBUETUWFxIoEGFCMykaGxwfAVQtEHM1Jy4SQ0U3Px/9oADAMBAAIRAxEAPwD38aUo0pRpSqbW7+tegeYmbUm1vN5CmI2H3QeeDghAORjleR6jg6kW1cbO2BmCxiYmccxjmPwqVLNx42qYMZgxn19s+1KKteIqkQutNOosmUU9WFyH0MpOOx6G0uKwT3HUCBzrPw7an47hP/1rJ5HG4fqOSB72U0Fwgl3CjMGJzxnbiPz/ACpU1jxUXG2FmBQ6RHCexdVJfVj048xAyfYDtnWDmyggo7kwD8YAz2ELM/Pkxg8WU6YDM3CT2xAxzOCZz5x6Zpdz/FruKkr8hqiMkHAAp/mAD3PmLUfX59ux51WOrsJAXTyR/wArjCRMmIMxwJ8x7VZXpNkgHe/rkc9/7aX9Z8Ym8UIAxpNEJUlSk5pEYpGFpGCFZyADnOQrk98YFd+pItwINNbANtmC73J+FlByTz8fOBip7XRdMxlnukASYbBHeI54nOD6A1J03xf7voShc5dBkJUkL/3W01kKyrGUKSMDITkEE4ySe+pk11ogF9MAYGVuXOT5gmOPkDxWDdJ0xnY1wDjLD0zgGO/zq+0zxjXhlPx1AospPHUW1PsHn5hShyPbjI4J5Op0v6QgHZdQEf2ureWTuEjjyiD51A/SFElbpCziRJ7c9uZz600KL4uaVIKBWbakxQcdbkOQlxIyPRDgJPP9pPfjsdTRprki3eZDx9qoie4kGDjj15HlVfpl0fcdW9wR59wD5Rx3maeNr71WBdSm2YdXREludITGqCfh1FSuyQskt5POOpSQSCNZHTXNpZCt4ASTbILDvBUw0x5CDzVS5pb9rL22jzGR+VNdKkqSFJIUlQCkqSQUqSRkEEcEEcgjgjkar9yO45Hce47VXr90pRpSjSlGlKiK/FnzaPPjUx1tmc6ziOp0qS0paVpUWXFoCltofSlTKnEglsLK8HGDnbZVuIzjcitLqOSIPEkZBggEgGIJzXoiczHeOawDc01kSqg0JSWapGffafplUkCLmQ26pDrDVUSh6EtCFBYbceDAISnqICgrW2v6XUlDd0ipqQUDohui07TlRLDYJBnLASIxzWy02ptgKl6bazBuIhuQI5KL8RJMdzySPKkVX5O5DhV+ybQhzGgsFD0SsxK6tWcZ/oaVKSrGAcpHmFQJCSCRrlNe30iQHwujOsXEIcXheJG5ZI+r4KYO5QTuEgcgnotIvRrgHidTUSJIKGwN3YFrw8x5QMGk3X5+6bXmpmUWo07vlItKoAp4B/2jyHlYGc9RGfXnGNcxrdd9JAro9nwMEQOnOQQRGWubzEeeTwTW+0+i6KwBXUrezz9dtiRP/FNmfbFLGdV7zC1l6fUGT6g0hiOBg88OU/qJ/iwTnB9sk6C5r+vgidffTsFGnsKJicfY7iYGAeIgA81tF6f00gRZRsnm87GM+V2CMH9DFUyozrkeWC7Vam5hCiAlptKR99OcoRECQQQEpUQSnsO+Nax9b1rx946hqzFtlJHhgbWdCMeF3KzuMYxwcTr0/RARbsWhkclpMBsSbkgCcZAzU7Eqt4KShLEupyAEBKUqpbMo4GAAAmnlfpg8j9RjVi11HruFXXaliCDtaxauNkgkA+F37c5MiMGoG0HT1lms2UPPw3WQ55ObsGM8Y9quNId3NlFKYVv1KpEnhH7qVXqVgYAC4rSMgH/hSOc4z21utH1H6SfBFrx24O7pzwQDBk2tpDGOxGZgk1r7uk6Usk37doAxA1aEiSZ3eIWAJ4icDGJkt2h2vvfUQEt7WTDlKsPS5iaC0lfRhsuJrakKSnq/FlYAGcqHJG+Go+lN22/hdEBuG23hvubTgXNjbCyakkEByu4F0ngkVqL39DS4N3VQJ2kqqC+0boObM58jMZmDWqbL2Pr0pcObcFRjUQjy3H4VMfTVJ7bgKSpkTWAinoV1cBxtchOOkpSSeOv0djUhLV3Ur9VuhR4tkXReIfaoMXE2pBIYgKGgQM81zmo6hYBdLIN0AkK7qbakdjtb4s4wQCfKK6DUSAqmUuFBUtThjMpbBWorUlI/CgrOCooTgFR7kEjjGvLjl7jvAAY4jmAIz+vzNaMmST5maldYV5RpSjSlGlKNKVzB3uiGHfFypSFpxWJzqSklKgl9wSUYIwCCHRjt6dvXsNCu/SWYz9mmPYQfaIk+s1mGInkjHeI9OPx888is4z6lIZUSlYOCogONJWrgdioDrP06xjnBGp2suv3WZTHY++YImfUCD3GKkR1IgrkepAjHyqF/fWsQCfh5khpWDzFqlUh9uPwx5rSRng/h+uq58cD4mLx2YAjtGfP+SMgy7bTdlPfEA+RzyMSD655r6N7oV/PSup105AAxcE5Y4II5fLyscc85OSNV7gZlZStqGBibYBBwZDcgkgTzj8KkCqsEDjtugRxAUHHA+ee9WGDuFVnlDrn1xQPBCq28e5AwOloEkcYAOOc5zrDZAxbsA8/7KET6nbgdhIOIAiBXpJJwSAeBuYD07/zNMKkXZPeKP61USOCOurTie55+46jnHrjPPBz3APxFpOMoijiD92IIn2PpmKxYAg7sx3JJ9I5JPsD8qcFv1KTJLfxEiU4FAAebNmPAcZ7PSFjkfT+esGNzgtAxhQFEST29f/INRNsPAUyB8QAJgTjg/PvToojLJLZKEkn3yecEk8k47cj1zqJwRmSR5cx+JqBm7Lj1GJx8uKatNSlZjMpAAdkMIAA6chTiOABxxnGeOR79q7gBS3EKxPmceeTj5+VYU4tasf5/X96UaUo0pRpSjSlGlK54eIanKZvutkjCZTcCa2QPxB6CyhRGSM4W0tJHP3skc4113SX3aO2ByhdSZzhiR7QGGPXyqJyQeSMYg1kWrRcZIwfxA9wRx688YPpzn25GdpuMZAbv8Un29vwrJDMiSTz3OMUt6jFAWs8EdRI79j374JSPc5x39TrGAeRNZ1CCOnrzjBIwMAjvyMDIJwfYd8k6jdeSIEA4jB55r3cRBBMj1/f9farJTWASj0PVyecd+Rg47jPBz39xqKJ5j8P8z/Py9LueT8uY88n/AMU2KCyrLY4Ayk9u/OD7euMge3HbGo2WMz7f+M17vb0PuP8AEU+7aSoBrJyRz6n29Bn0AIAzz6HnULqILCe2IET39f8APp383GI/Pg/lT/oGSGe3A5x/0/5/nqjcH3o8z+R/LA4qMkgzMgkCPLH49uPem9QkFdQpyB6SA4fYJbBcHfj+EY9fbVO9/tP7fqR/PnWVNjWspRpSjSlGlKNKUaUrFHiYg+XcNNlpBxKorSTwMFcWVJSVZHOQhxAPpgD8+i6IxNl1wdt5sehAknynMDmB3qJ4n1PP6ftWJKw2D1AjHcZA+RA+v1+QHGOd9XqDk98j5YpbVFkdSjg4GcnIOMjnIGAefcfP2OlSVDeSkODtkng8ZHsQDnPr29c6judvSTzHlSrHTGE9QwR3Bx93A59fTvggnk85yMaikeY/GlNOgtjqR3x9wAHnuc/QjByeO/IwONRs8iBPrP8AP5+innbqcBvv/B6egB5/9/TULxETnkD+fOlPe3/wt57j2wfTn6/699Ur27OBx7YHBn8j38qxb+3/ALCnNayOuqMHHDTL6z/2BAP6uDWv1P8AtH1Zf1k/lPzrKmdrX0o0pRpSjSlGlKNKVlXxMwgY1uTcH7wqUVR47AxXkgnvyVqI+QPrredEYh7y9oRu0z8Q/fPyrBxx8/0n9qwTVmlKUUjGVrCUgHupWAB9STj6kd9dJRAY45OPyrg34vPtSjtFfci1trqLTK5HpX7SolaTc1HUqqquamVusUypTqZHi3ZTVN25AVSxBjyKow27Wqit92FHRT4ipL+h6h1kaa54dlVcqSrbhJ3AsDADg7cYYgbmwsgE1yPVfpO2kvm1pUtsFlX8VAz71LBiALgCqCAFkyxkwAADhp/x1+O7cqmt3jR6rE282/nSpEaHd9z1nb/aGyZD0VwtPN0mr1aLCmVF6K7hiY3SatdDjT33XnG3SUa1B6p1O+N9oBLYbabjGzZtyBwr3ImMTtZiIyBMVpG631zUILy3RpbDEhb1y7a0towSCVbarsAcMV3fEACSRTjsLcXx83Ta9yXhtl4ptrN1anaNJk1uqWJY25d3X3czzUVlcg06DDG3Ey35dUktNuGnwzUEpqDgS3HUvrSdF1HVbouXLGs01zYu9rdu8LlyeAAq2mUscwJiDwTNT2tR169au3tJ1bT6trKFms2Luouu0cKCbJRnOdoLAtx2q32x9qh4t9k4VpP78bVTUwr6oP7yWdJvmy2aRMuOgtuhk1amVCgP2TIdaW+tDIRNosssNrZdU4pDyFqhXrmushPrWnIDqWt+ImwsAQCVKlQRwMrAJmSCBVZvpd1np/g/1DSEJfQ3LBvWwDcUGGYFWtMByfiGTzXeLwPeMS0fFHbTQachQL9iw6pWKpQ6TGnLov7uMVWFCptTgVN+ROQZPlValR61R5spmr0msOSY0iCiOlh53caTXW9am5YDgGVUMRsDQG3GRPxAMsgq2IjNdh0Trtjq9oAFV1QV3uW0BNsIHCqVeWG6GXejNuUniIJ6f0AEeWef17EA+ntx88n+eVzbBAkAj9x/kd58q3jCYiJmRPpTys1HVKkuH+CME/QuOpOM49m8H6D01rdWfgQD/lP4c/kcVlTE1SpRpSjSlGlKNKUaUpAeIqGX7PgSgMmLV0oJ9kyYkhOex/jbb78a2vSH26l1By1omIHZl8/Qnv6nisH4Hv8Asa5EeJ6u3Daexe71yWlN/ZlyUSwLiqFHqiVtIepcxuIW1VaMp5QbEylxnn6hBLhwJkaP/F0g9Jfdk0924pAdLbMp/wCLBcHGQV5EZkRiap667ct9P1dy20XEsuUMgEcZB7EAsREEnvXhP3AqNQrNzVmfVEutyzOkseQ44txUVqE87HairdcJddeY8smVKfUqTNmKkz5bjsqU+6586vMXu3GbJ3MIOYgnE9+SSe7Fq+NXHZ2YnuxmcwZIifQSBMnmTPG29sb42dvDYNra7dS+avZu69m2pXKHsxUr+tq1axZdv1apV6XcNHp4qcuw6telAsm5mqiqO2uJU5FLolzmXUpjbdLqkB0XLd3T3dL9XvXPDvWkddMb1q29tSxLhdzWzcW25JG2SPElmABWd3p9RpL3TzptTeuWNTZtOmkuXravZVixdU3eC1xLTg7RtbatwEsIOJXwYyN1PDpvTTNyL6vC8LB2utetG57lti1rhmrk7912lQJQt7b6ybJorgc3Cn12oyY0SZWYtDdoNtUgTJtRqkNCWI78HTzf0mp8W5ce1ZtnddW20C/A+GzaRf8AdZmidoAtqJaBWHRjqOnaxdVee7a09pmuPZsuS2uuhTssW7KH7Xc5G66bfhW0BYknFIDeu9tzLyujo3HbZt4s3JetxUrbpMpt2RaEvcK5JF03AuoQEyJT9OqdSmyIrclmqPRKilinwozdJpsGIwxqhrLt+7c+1Hhr4l10tkybfiOWbcoBKs3wqQSDAG1QK5vq2o1WouH6zCqHu3bdgEE2TfvG4+4LO12YgNLSQqwoFby+zK3Vvrbrf6xINmF55VauOiQptNjgpFWpdeuC27auChTkpBS/TKvS5jMrpcBcg12g0GsQFtSYr/xE/TL923qVVchmgrP3lLKrhvNWU5B4IVgQasfRfW6nTdW0yWdwD3UUoP71uXLdt0acFHUrIzDojjK59yVDQEqCQetKXFJSrgdaR1JSvtj7w+9+eurumAQO0jd2xBng4Mfzt92YZH/b04n+cYP4U+rMR/Rzncc9UdsH6JcWf/JP6a12rJlBiAGPrJ2j8DH5VlV31UpRpSjSlGlKNKUaUpT71w/i9vqscEmK9AkgjOU9MpDJVx7B859hkn21e6axXWW8ffDqfmpI/SflHcVi/wB0/L9RXne+0do19VDbWx2bM3Crlj064907Y2uv2DBi0mrUi5rV3QVIoMWPWKHWo7kKeabcsejPNL8+GtEOXUUGQlK0Ka3+tFw2FFu4be69bRztRgUusLZG1wQxkqYxifiANaLraXWsadbd25YD6i3Yu7ACLiXsAFWlSRcCxIxuOeY87Mzw/wBtv29ULwp83aK+qLFpl91d6cvbev2+qS/YN67ZWpdEFj91dxLdVMVRxuX+0qtVmGU09n92qsyw5Jam02WvmH0ylWuq1i6ALzMfCuLJsm2LgBS6skeKSSYUFWEEGTxJ0Fso11H091VW4xY6ZlkWtRasufguW8IL29nCkDawMTuqKm2qq1Fb3MyLW26kUPYSpXbRbyeembtSGGDQLptazqU9bdt3HddzuFm4KlccCSoIchN27TFl+rzEtqhsPQsnhnUg27RXSG6LxLXjCo9tFKJcZyN5dSpgBRliBg+G2loaxXtWDb0O9dR/7mQ1u6tkeFbN5wVdnBLYS2AS2CAf5oW8tWuWx96LjotFoVGt7aCj2rIq0a3Ls3CsKqXXRbsuhixqVHgv2xDodUbQ9NqCJb0GuTwlMZYQEOuJW2uuNUzW9SwQKmmRCdt27aZle4toFSqoyyWE7mGPKai+u+Np9Y6W1VNILAdEuai0bqX7vhKJQq3wkyw3cbsnE3uj+H2zI9XuWl3LZe0loydvbr2wtndSp1u9d7ZtKsCVuzbFVuyk1d+RAqbJuumUaLTJCbpeoyEyqehLtUZZqMFJkKjbTJuuIbNi14L2U1Be/qmW0dQhdGLCNygD49hnkjcM1UudN03iai1dtaW0NPesWtSzXNay2TqbT3RcBFyLqLs+1CQ0EMNyy1Pu3tmNxNjaq9d9JsKxLeui0apWIkFq1ol73hUUVXb+1Ym89crYduHdRq3H7IodqxLOusXGUOuV+l3FDkUahTYkOrpQ8C5p2FwW7SujHaV8a4dyW/HJG+6UNvw9lwOZG1pAkZr/ANP1WgZtTZsaW3qLDsENtbt9g1myNY1wG7qNh062BZui43xOrkqsKxHrs8LcrcOq7H7WV7devtXJuLdFnUa7rpqUalU2iQmp91Q2rgZpcCmUiLEhx4VHg1CJTmFBn4h9Ud2RKWp55QR0Vo3Tp7JvMGuOis8KAJYboAHYAgevJA4H13pR1LdO0dzW3fG1N2wl68+xEXfdAfaqoAAqKwQQBMFjM1umz2+mmOOY5clL9+QhttA+XcHt/fqjqjN0CeE49ZmfwIrY1a9V6UaUo0pRpSjSlGlKpu4UUzLIudgDKjSJTiR/ajpEhOPmC0CPnqzpG2aqw3ldUcxgnac+oNeNwfY8c8VyL3W27snc2gy7S3CtekXhbMmdCnv0Oux1SYDk2mvKk06aW0OsrRKgPLL0V5txDjLhK0EKwR2BtJdtm3cUMhYEgiQSCCJHoQDIgzwZqF7Fm/a8LUW1vIYO18iVjaZ8wRMggz3rjb4t/s7vjWoVS8LNjWLbbLlKqsS77QlVGssxKw7Mf63nKZGqF1U+KkV6K43HuCOmqR0znKbBcMSQ66+4NRrumQi/U7dtQA4ZGZwDuyQoV1neB8ctmBzLVzPVvo8XCv0y1YtjYwuWXZwHLGTslxIYYdSyiVByOON9xUG/LGues07dS3qXY980pt+hOitSvEt8XLt+c1Aalic9bV81GXHpchpH9YjTaNLpE+NT4zsWfUmxDKebdbqFxeQJdUbQSdV8SkLOfEY7cQdylWABBrjr1vUae441Vu3avBSg3fWvjRhwxW6zMDt42spIBkAE1VrOvKnxarc7MCRT7efuR2lyK9Po10eJp1F5zY5lVOF+0mYtfTNqUikVRplthypMrEOpy2ZUZaGWX5bNQXAXucWywUuy3NYRdiSJA5CFcBpAZscTVVL2bwwm7buIbXnxGEsC5RpOxjiRhiWAgSNVbT7Kb874VqRb21u37N621Rokekx7qkXf4gW6KzDft8UMx5rFe3JpDNJisUh+RbjcK4pkSqrorbkSHSzS5BYTImn1V9tti34ygAbjc1EAFdpB33Bt2gskO0lcKINS2On9S6lcKabTLesgBBea5rAgDLsZSHvqJVDsCs2/bKgBa9AXh2+zZ2bh7bxYm9Vm1WpXlX2Fxrqo0HdfcOTbbVGpzSqDbNvqbi3Y/FqbVOtWLBiOuuyJKGkSHqLHKaVCjsDdWel2RZbxkZrjiCnjXCgCyEWC5BhccxmO1dvofopoV0oXX2Wuai5/vKmq1IthFHhpb+C/DRbABOTB2TtEV2Os2kwKHSKNRKUx8LTKLS6bR6bGLjjvw9NpUGPTqfH815bjrvkQ47DIcecW6sI6nFqWVKNpgqqqCBtACgA4UCAO/kOTJ5NdTbtratpaQbUtqERZJ2qohVBJJIAAEkk+taZtlvy6NFJGC4XXDxj8TqwD+aQP/mtTqB9u58gBHyB5n8qzqe1FSjSlGlKNKUaUo0pUdV4/xdKqUXGRJgTI+MA586M62Bg59VDHB5xrJCFdGP8Aa6n5hgR+deHg+x/ma5UXI15TrqSCClagffIxz39Rn5ADXajI5n198j8iKDgDyAH5Ugtwot0vUxlVpuhuosVWFJkx/jI1McqVMYD6pFNbqkuLNYgJkSTDVMe+H892mNTYkR+NLkMuH24T4c25w3GAcTKgkGN3GBMEjviO74hQG00EMCRIG5YaVlhgFtu6CrQCqkEyMo3XTt5bllMrv3Y/bbc+2vPj09m150W2pEumoVKY86vxqrV36sYbchlqStdJjSX0QX5kV995+NDkoXQui64+001q8nwqbbKsrJgsCZ2jBEbhPwjvFa24uruEm/otNqLRIUWyqHaMbn3Pv7gwoODAY1FQ9paAhrbusRfBtt1Fdq1yVKDfNAct6h1qdSKUmrwKdR5rEp2UxTYEUQpM+5apMdhVRCoNJepdOZdnzYHxFZ7FsC2w0FoEOQ6hFbaAQFYGVAjJPOASOaiOjtf+muDpGnBLt46C3bdkWQqEMQFAClncwMLCAmAda0V/ee150u2LS28tGVasWpXAqgVOOijWpTaZSG6vFiUCLDtmmVCHEeddpPxFRmPSZEB+c4UlJimO7GXPN1NypaTZLbICqAAVCjaCAeTj4S0YAABN0nWWT4dq1aa3uulHGy0LaB/s1FpWUGFiTKbiSTEQdx2t8SuJAXNYajzFxYqpkdh4yGGJjjDapjDEgpQZDLMlTjTL/QgvNJQ6UJKukekwCTAgSY49Y9PKr4kgE8wJjiYz+ffk8mnZQwQlOe4xjAxwMdgfbAB74/vpXBlT6EfiRH70rSVHb8qlU9HtFZP5rQFk888lWdai6ZuOcmWPPPNKktR0o0pRpSjSlGlKNKV+HBBBGQeCPkeP099eMJEUrlrfkT4St1aKU4LNQnM4wOA3JeQnj5pA9fb07dpYYvZtMeWtoT25UHjtz/BFeAzPoSKTVRB61jII+8fTjIGccckH3+fGpa9qBKcKGexPGMZ+Xtg9vp6aY9PWlTdOAyMAYBH5H/POdQNyff0/b+eeaUyqLjKMgA8c+p6fTt3JHb6d/TwgHB4pTmoAOGjwMBPqMngf5EZycd+2NVnEyBGDgk8ATSnHRUnpQB3JAA9BnAGPbOR+eqdw8D3Pl/jyP74pWm2EBpllsdm2m0D6IQE/4a0k7iSBEljB9SSfPvSvrpSjSlGlKNKUaUo0pRpSubm80T4W+bmbxgGpyHkAdgJAEhOABns6B7HXW6Ft2k058rYXOfukr+1PP+Rgf/vzrPFRQPv44JHzGCPTGPY9x+fcat0qBIGT8jj9D+mfnrxuD7H9KVM0/goGO5PGRjgjAHpg9/U/Pk5gpTKo/JTxykoI/NXAP6k/njPGhMZgn0HNemRjzAP+Kc1BSf6MEdgnPI9Qf9caq3JIP/aTPYZ/z+54rynTbjZclQmu/XJjo49cuNj1+f8AMcaqXoCM3cKxn2UmPypWltaT+fjSjSlGlKNKUaUo0pRpSjSlYA8Q8UR78qDgSQmXDp0kEDGSqIlpZHoT1M4z7j9en6W06RR/xe4pHu27y8mB+dP5/P5/issVE8rBz3VjPtxn/AgY49+dbGlV04yQD2Jx9Rwe3Hr/AKPGvG4Psf0pUzTykqSBk4PzxnJA9fT1+v6wUpl0XlSO/JT3zz0ngc9+2Mn3+XOLNAIBzWZyskRAAB8/5+9Oihc9ChnGE+hweCPl2/lqu+VP5+oOD+tYU9LJb82r0tA5xIS4e/AaQt4e3/LB+vpzjVHUttsvnkR7zj96VojWnpRpSjSlGlKNKUaUo0pRpSsP+KOKWLko8wJ6UTKF0dZGEqdiTJCXE54Cilt9jqGcgKT2BB10PRz9hdWcrdkDyDIAMeUg8RkZNK5x3Pce59FqFTcYsejXfQ0PznqYuhXK3S7g+BQ1HVBhzadXGRBfqLjzkpp56PPjxA1HZdSFOyfJb2bG4p+FAyjyaGIgYgiJme/l61XZ9QhMWlurLbdjQ8CNoKuIJOc7u3AJFUhW8K486roqe3W4cCmUqQ7DRVmqC9Uk1CdHkyo7rUGnxUia9HPkI8iWhDjTzr7LOUpdZedia/BZTbuACRMTJzgRPIBgiRJGZkDD6yRJaxfCgRu2FgXzIG0TGMmIDELJJETcDe6hoVIL1p7ioEUeepTFnS5bZgDqPxiltvoSMBB8+M0ZD7By3hxxDqWY/GXMpcxJ+5IgCdxIYwORABM45kU+uICZt3pBJxb3DaACCYPkcjkFSOxhqW9u6mqRKbMtmxr1uVupRWpUVcaFEgMhD0REppciTNf+FbjOdaWW5zLz8d19uUlgupiLLsbXC8G3bd5UHhQDMxJJkYHrg8VINbvUG3p710MARC7VgiQSWJAA7nscczWlbJq94VGoR/j7WiUGi/AsuSHJdYbmVdVQdjOLXGjxYSBGRFhyg3GckSF9c1DipMZtlDXS7ExuE5XaoGfikyexiBjv68edZK11m+K14aRyXBaYnAHK9pk59M1rbbpouVlheM+TGkuk+xLaWkkkdhlw4Pv29dUNYxFsrH9ywfWCTjHb1HepafOtZSjSlGlKNKUaUo0pRpSjSlU+9bGt6/6OujXDFU6yFF2LLjr8ifT5BSU/EQpISotLIPS4haXGHkgIfZcSABLZv3NO/iWmgxBHKsJmGHeOxwQcgg5pWIbx8IN5tLfetC5aLWYxKi3DrbcijT0gj7rZkxW50F9QyAXCiGk8nyySRrc2urpA8WyytMMyEMNsQCA0GcDG4/jWaso7H3558z7+Q4jFJGf4b9+YDpIsdU1IIBdpdwUCQhSQkJBSHqjEfKccAeSD0k5SnPFlepaNgR4m1s4ZGET7BgBETBj517KHn9xHpz2/DyivrB2X3qbVh/by4Enq56nqW4nBAB5TUlJOQAOM8euAMPrul/8AnU/J/wB1/kVkSpOSDPsfxP8AmmjQNnN13FNh2zZ0VKVD702fR2UJTggDpVUFL4wPwoVgAcDgarvrdMJY3JEk/CjEjJH3Qs8Hy4PvSV8xmO5j5xMDzxnvT/tXZi6UeUqsyqZTGwR5iGXVVCT9EpbQ1GBA4yXyEnslY51VudQQiERmPImFA9zJPy2/hUbEE49vTH8EVomg25TrejFmEha3XAnz5T5Cn3iOwJSAlttJJKWm0pQnuQpWVHXXLr3W3OeJgDCiTOB+5JMd6xqe1HSvm6paW1ltKVOBKvLStSkIK8HoC1pQ4pKCrAWpKFqSnKghRASRmPhie08T2n0nmvV27l3FgsjcUUO4WfiKKWQM0TtUsoYwJEzWK4viF3wpdErpr/h9u6sXFHk1xVHVQKHXYVCXDafYbt0TUuRq3VVmXGlxZtSfioVJYbVMbTS2ZECUwzy46z1W3bveJ0bU3bwa94JtWrqWtqsoshxtvOdwYM7IJA3A21ZGFfoa9/pX/pvrOo9O/pn+qvQun9JuWulL1BeqdQ6Zquprfu2btzrDad0v9N6ev1a9p7+m0lu6/gXX+quddes6q1ddybUb4RN06XbVRjWVfNFauOJX5KJlRt2eiiQDQavOpJjz6w6zGZYkVMwHZtMShl2NIjLbaEz4vLOtl07qq9Qt2LiabVW1vreYO9lhaXwbty1ta6Qo3XNm+2FDAoRLbjA+f/Tf/Tm/9Ctb1fR3/pF9G+oXOkXumWX02l6tpT1LUf1PQaXXC5p+n27t649vQ/Wl0ut3XLd61fR2Gn8BTcr/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgAAAQQCAwEAAAAAAAAAAAAAAAUHCAkGCgEDBAL/xAA6EAABBAEDAwIEBQIEBQUAAAABAgMEBREABiEHEjETQQgUIlEJFTJhcSOBQmKRoQokNFLBFmNysdH/xAAcAQABBQEBAQAAAAAAAAAAAAAAAgMEBQYBBwj/xAA9EQACAQMDAgQDBAgGAQUAAAABAhEAAyEEEjFBUQUTYXEigZEGFDKxI0JSocHR4fAHFTNicvEkNEOSssL/2gAMAwEAAhEDEQA/AN/jRRRoopLtbuoo45lW9jEro/IDkp5DXeU4ylpBPqPL5/Q0lavbGdOWrN282yzbe4x6IJjnk8AY5JA9eY4zKoliAPUxTWTOuG1Q+YtPGsrp8KwFNNJhxjzjPqyil3t85PyxAHnGrC34TfcgXLlq1MSoJuuJOJFsMgn1cfWmjeUDAbpyNoz2JB+WCD0614neqd2//wBNUVkVJ/SJD8qa4M+O4NIiIz/CiD7HnOrG34FYEebqLrHqLaIgI93LH+U8mKYOqP6qDplj9eI6/X06J7vUDdzgPZLrIpI49Ot7gP7Py3Tj25PGnx4NoAM/eH4ndcQA/wDxQfn04FI+83D+yPYZ/eTSS7vHf7ij6e5YbafYJo4WQP5K1Z/uMA/fweHwfRhty2hjgM909I4V1Hr/AAgkUn7xd/a/cv0EDH1nHNdJ3Vv/ACD/AOrgkZ8GkrPBxkfpwD5wcn/zro8J03VEA9PNJ+pvdfbHPcUfeLuPi98KP/yfy+lCt57/AG8enuZlw/4vWoq9QPPsW+zBx+59zg5xrv8AlGkYgBAJmZa79ARcA46xz0NA1F0R8U+4GcyenX2kDrXui9RN6oI9adWSRkj6qoNAj9y3KSfPGUgZz4+w3gekA/WUf7XPXoAwaDM8+9OfeW9PpP8AEVkTHU67bIEmtq3x5UWlS4qj+47jKTz++Ofc6jv4HZP+nfuoc4ZUcDtxsJIxPQ+lA1TcFAexBI95EH3wRHbrS/E6pVyyBPq58TJwVx1MTm0+OVBKmHwP/iwo451DueCakH9Hds3AFmCTbaZ6bgV47uPSadXUoeQw6zAI6doP7qzSr3LRXJCK6yjPvYyY5UWZSR/mivhqQP3IbKc+586rb2l1OnP6ay6Do8ShzGHWV56Tn608txH/AAsD6cH6GDS7pil0aKKNFFcHODjz7Z8Z/f8Ab745x451w8dflz/Giq593WNy9uudG36+/WXypbraU2gkMV64qHlpa/JpCVJj/l7jRbcYMV36gQl1SX+/W8saWxe0dpdC1s2Sqm4Fb49zAf6wSH80GSQ6g4AEqBFc7MGPmqQTPPBggHZOIjODxz1rPaKLXR4zXyjUQhQCi9GJcS6rypfqlSysngnuUTn3ONO29MLK7VUBogwDLepLZn+AjimnYsSZnt8v+z9ayMAHAzj+CPH3x4/2/bONFJrsQlrH1qKsHH8f25Oef9NdAJ4E/wB9T0oruARgdgHjycjx+4OftxjP99c9+etFcYGB4P7ew5Ofb/TwefGiivkgY/SCf4A0UV8pTnkhQwTwe0g8ceMcZ/sMDk+NFFCl4OMgY8jgk+OMZGD/AH0UVwChRIzz557R/uBnRRSdPmR3Q3Djd0mzWtPySYaluS2pII9NbK2QXm1gjCQkhSlEjHOB04BLsFtBW3hyAjLtMghvhIEyf6wVAMCIDAz0kT6Dj8/yqUu1E3CdvVKb8qNumIkTO8pU53dyvS9ZSPpVIDHpCQQTl4LJOck4bVeR95vfdgBYLk2wv4YgTtHRN07B+zHFWabto3c/1MT6xyOO1ZDqPS6NFFGiimG+IfbrdrsCVcoSyZW1XBaoDoBS7BX2x7JjKkLSjLS25KVqSUJXGHcAFEi58B1LafXLbAO3UhrbQ22HALW2Pcbhtj/d2xTN9QUnHwycicdf5+sVWkvecSlfLiGjDc7sFcaVNqirAP6lxHlwZA8qCg2e4/qGBrYvrHUstxNyiD0AkCIkyMnrJHMwajeQrDcrEHgyuJ7Tz69evOK+3uuziWCkXNrHDRStSkPQLAuEA/R3q+ReSAQMEOZUkgEYyRXajxKxjdZukbebTISG4IBlRjpMST0zXRpmjcrKf+QO3HpkdpI+czFeZj4qqWOlLE62uQ6CB6jlGtYSP8ymJU1SvfIwQSPIzqqfxXSAQL2vtBRnfp2ZpGI3WwwYH2jGTXGtPOEQzxDKAfYHI9s9qyqL8U20kIQ67uKQ4nGVBW3J6SQf0kr+lWU4yQUew9uQ0vjfhxaB4jdAGD5mjv8AMdxZAIyOnJGaT5F058siRwroeR0yJHvGK7kfFvsdCw2LwuH9I9Wjs0dys+SUI7UgjkYH9zp//OvD1TPiFuepbTajuB+raHp260DT3T+oe+CJj/jI64mfYGsxrviIoLNCVxHm3isZH9CU0Fe5z3sKI8ccKzwc+NO2/GNA4EaxHIn8Gnvg89mt56cnn0mj7tfjCZ6yc8+k/I8daWWesTEsH0UtJCjgEokccn9Xchoe3ggA+2cjT48S0TcXbzEDO2wVUnHVgoiOqznmcUHT3RkqBHPxAxmP5dIpGl9Un3pBabsJ7Jzj/l4kPs/kLfS6rHjCgCcgfvqBc8d0ttiAuouQTK7LaCO4bcSY9gOM5pHlbSN0yZ/Wnv04746c13Rd2LsZCEOi2mIAH/W2a0xynIypUeKiMwoZySFJWAQP2wq14xd1Bi1pfLBMBnfMeyKp9xMesiK6qD9Y9YMfX3mM/wBOZX9D6QT35G5lsx2IcAuV8BlkDuXNcabVIkO5BJSzHcS00SokreWoBIQO6L4nq7rILBJG6HdRhQoOAIOZMmSSIjkipVhFBJBJ2mBPX1gjHyPPpzJYADgDA+w1SVJo0UUaKKNFFYb1Er3LbYe8q5lKlPzNr3rEdKEhS1SFVsksJSkghSlPJQkDB5Pg+NP6W55Wp09yY2XrbH2Dif3TSLgm24/2N9YMVQFabgbsoS3IrykKw4XC2rBS80fTeQpHKUqS4nCkKTkc8YI16NqrLLIIwQrqepRl5HMjqOePWarrF0FRBDEAgj1k9JGeueJ7VHHdO5bWI452fKS2xz/WYSlZBzypTKmjx74wR/JGqO7YTflEJOGG0SwxgkQc+2CJHWnhdaCQxEt1jIPMdjIxk+0Ypopu83kvJL1SMA/UqNPlsHk84BW7yeSPfI8D3gX7dtGI2ALC4ViDBggHoYPt/NwXC0AOAwBJlQeo9MTOP38UpxN+tdmUMW7ZIGUosyoYJOQQ4yo8Dn2OQc4+oGP5dgsItmCDM4kxPYTnE5ERzTgYgQYOe0fkY5/sYnKa3eUZx5slm7UDgkKmMqCSDhXJjYH8gggHwB5cNgFlUKYI5+EgAyewz3BHekSVMnbniQ2MzgZEEcHuBOKeOg3mg9iW2LJIwBhc1AzyfOGgf3BGATxjOSH10aCZ3HsFYQCeYhRzgAT9KDfPQD+/7j8qdmp3VJWQhEUpCsDuemvOducf4UlI49sYx4P20i5p/wASqsDI3MWJg9ox3mR+WFeYGngExjg9T6jEZ6QMU7VDYyHSnhhBBJUoM5IwcjC3CojGOSCc+6j41GXRLuAgHO6dnHM5b+I7cTTbOnBGAYyQJI6yMj5c95zTlU0lDr7i3XlKQk9iSpfCl8d/alJCSE+CD3DGQdSIS3joJ4idx9QPymPeo73QT0BmImcfu5PbFWMdCGkp2BGkIB9ObY2D7S8YSttpbcQKTjgpK46wCOPpIGcZ1Va64Ll4R+ratqe8jcST7yIn1PEVM0/4J7kjHGMY/oSKebUOn6NFFGiijRRXCgCCCAQeCCAQUnhQIPBBGQR76KK1rOr+3mdr9RuoVcx60Nljd+4G0iKVNhgsWMlgpS2kgdhZQ0Ckgg9pPgjPpVrUPd0mlcszFbFrkyxBVYBzJgzBxHzmsXqLxs6i6AzKPMeIiFg8Ec579sd6jRuJlcgKVFt21DniShsKCgT5B7VZ/fAPudRb4tufhaDkEHoPmefTv2pVvxErG4K4MQdxXk/sjv6Zzj1Zq3jWwyQ1DdAWMqQ6pORkgHGCDnnOD+oHJIwNU+otXJUqQYwTngHqOAIk4noetSV8SWQAu0mQQZPEcYAzOOf3yMafvHadp960jNxYkVlyRJlKkIDTTDCVOOOuuOFCUpQlKlEqwkAZPOmF3l/LIUtBMhjtC5BkyYgDMjie0U8viCzBDQQTgAnvEHJPAjHb0rq2T1r2luhJc2/JNiw2pSEvxEx3mVK8fSpt5eRgDHBzwSCeBYpaKL5oa3cXADWrgZZPI3DHacgZE9RR/mFvdtKXlaMC4kEzB5mf4jpmn+2/u1RLZTGlOAY49P6/4OT9zjk4Pj99Bv2wSCYIjkiDOeQTwMmRQdcoBIkR3IPbGSee/b60+m3dzS5ChiEtACwMuqbAznu5AKvufPGftqN97tsxAyDxk8dyAMTHrx6U0muJYgEwBOTggHpJn6D3xTwNbnsWYuQiOAEcgrWTgAAgJTju+wGcAjOM401f1KJbIAO5iJwI/eOQc+o6cikvqnMwVImYJ5zOQBmO5MiesV27e3fuyxY3YE000I24YhqlOj5OHdGTCMuXIZUkKdcjwO5LLi/qK3ELSlOE5LYtoV0a5DXSbjsWAVsMwVcfCM7Wkc4iDlAuXGJDMADJhRAUAlRJPeJAB9eeb5+lsJNf042LFS2GijadC662nhKZEqtjy5WB5yZL7pJPKickkk6pL53Xrp6eY8ewYgdugHQew4rUWECWbSD9VF554nNZ5pqnaNFFGiijRRXB4BP2B0UVrzfFun8q669TYhGPU3PKlgEEAi0ixrIYz47jLJyMg5J9sa2mgvRpdEWaQbe1hMfCpZcnPHy5rB+LSutvqMS7Nt9GCkmOxHb/ALgluJ1pwulKgkc5OMEE5yBjyonjGOMjk4OlXyCGMwCd0++YPA+vPUVAtvmIDY5Bjg49T/c+rRWJbbKlB51KjkgIWoHjnKRnt/bnHPOeTim1LhFkO0sTgHHIwBMDH5YinxcIMx9ORj157U1e+9s1G+tv2G37uVN+RmsFpxLMpbSlc5CVkEBxs5CVNrylQyCOc6rTqiA6ksbbgqwkgnHJgzBwO/J6mHVvlCHVpKwQCoJnJGDj3zjA6RUfOnvw4tdObtudtrcFpChBYLtew+58o8gq+pTrS1rbU4QQfUADgwnt7QTqVobyaUfoWuIhGbO4lDPIIMzB6gR6Zmn72qbUD41tkgABgACvXEGRH0xz3nFtt6dFShK5j6gABkrJA7QDkcA5xj3OeTnPhy7qA7swxuJIUAAZGR/E45zgGmxG3MT7wccAn5flT3bH3ZXy7N6qZmomzIaEvTI6HSpcVCynsL47ldhWchIUAT5BOM6i+ULRV2dfiAi3uG4yedgOAREbjB5waZN0gmB8OVBB+ZWYzED26cTT20nVDYTu64uw39xVDO6pbaHotI9JQ3YSWCFKKojboSJCkpQpRbaU47gK+n6SdSrtm69pXKhVIBQEjdtBgsFknAkTB7kUq3fDTIaONxHwgzxuGJPrAA7dJebVbYkzokNptPprQWgjGe4L7GQk8E/qXgg5yCcHUc3HN23BI8rIEkxj1HA9oz9bC2Q5kGOAQMk8AAn1kEduwq7eBHTEhQ4qEhCI0WPHQgDAQllltpKQPYJCABqvJkknkkn6ma16/hX2H5V69crtGiijRRRoooPII++iitfn8QhpNT1/3c4ApCZ9Ptq0bJBCVuO0jEdz9j9cNQz98Dyc60uhuD7jYYkjb5iyAf22b3mCMD+lYbx1Quvc9WS1Hswz3zPtMDpxVVcbqacemRw6hT0TsXIaBHchDiPUbcUMkgLQCUnt+oJVgnkaL9241pGjctwNsaCBIOAOBu7j/uqwbLYIyNoYnGQBk8z/ABH1FVI9cvxGK3Zm55tTtGtrbyqQy0K+3ms3qHpkkNd015Fe0iO4K5iQtMSFJcMdM91D7jCnI7fqqtbP2fN6wlzVXn05eSts297FYBD4cBQ0wCexIJ5rH6z7UG3euW9KiXbYUstwlgQQIKkQpbJlfwkyOokRda+NX4nOoJdnbN2xaqqC8tCbODt2jqKJBCgC25b7hVYwAprIC1G4C8HK2UHI1NtfZjQupZLOqvQQofFu3I5liGUYzG+Z5HWqt/tB4zdIKBLVohmk212xIj47hOB0EkA8zWfn4hPjM2dtaw3zZQ6K221SRkTrn5LdHSXcsmDBU6G1SpNRQym7gMtLWkOhsjsTypQAUpLzfZrRorHyLyAKSxXU2LjKCJJgCYxmPrg0lvG/G7K+d5mmuIAm8BrLkAkEkC3tIBJVTkkDJPWs/wBh/ifyYbSI3UTZzEdcmK1JZlNx7vbct2G5w3MZhvRdxQZbD6krUy/GmMsrSkqT3qykVlz7NWid1jVAEgY1FpkMciGQMIgRPJiARkVK0/201KErrNEGnhkdlIBUZKPIIJJPOeAIFW0/Cr1X2B1C225b7UZrq+/tJcqfuaqXYNT9wNKakrhxpc9zDL7tbNY9CVWSW2EQnI8lsMkOlxIyXinh2p8O1l0XUyzqRdCsEukIApUsJKhcCYOGLQTFavw/xez4rprdy06oyKwbTM6m7ZG4j4lGYaNwOZDRJqXl70525vmXtW4lQWEX21twVVzTXLCEtWEFUOU26+03KbAdVHfaSpt5hSlNqyk9oWAS5pdVIa3eBYBCyHcSUcSVYGRA3QrKPhIJkYqytMySVMhjDAnEMcsR1jkdZGKsB6OA2W8tvx+0qE+/p4SBgkkSLOMkjCshIAzjgnGP50lGAN1z1V4JHJ29IkwTzxn6C50ktdsiY3so9CCYE98dO8VeMP8Ayf8AcnUCtlXOiijRRRooo0UUaKKoU/FOhGB1boJiWyDbbArHg4kEdzsK1uoawSPdLaWRk/8AckDwdXGkubdCVzK3Lg6QZVPoP4zAxNZHx4Rq7ZI/FZXMf72ESOsxifWYitd/4lrGVtfYO+N/bZVKhbrh7WRSNzoii62IFjbw4nz78NfdGek0iJsqfXyHGy5GWXElao61o1O8HuJf1Om0V2TZuXk55UjO5YIyfw8meo5Bx3jOouWPD9VctEh7akoQBKkwrNJ6BZwZH6xEitW3dUyRcWk+yeT6Lsl/IQlSyWWWUIjx2StzDjzjcdpptbzii5IeC3nPrWrW+uNloVQrABVA4VVCoDEmQoWZBzmBkV5h/wC3JJmWCsBtJLGSTzEFiSYPEVMKJI2h1e6NwkTd17VndTNkbSqaHauztxU8apjWLNS80xIo4U5y/g0j9wzDMmzrBKrWZm4y4227KlT481sP+Wuo04g22u2bey3auKo/CxBUA3AGcqWYNE3GMEkqQJrXrN2z8bg3bYUIpXbuAA3qriVDJiJCyvrEL3wfb73V0mv9xWW4ZDG2OjFPGvLLflXa7eqWIm57l6hmVtXtGjfsIKp9jdW0t2OhmsqJq2osVh2bKajxEPOKasm6hfzYt6a0d16UVBvVCFRWgN5jFiAls5X4iAJNK0Oo+7XLjE7bG24XRlBF52BVUVWlrkmAQJgbmaFzTE9Tt9bm6jzdsP71esop21Ru0u3I1v8AMu3MalkW065SxMky0CbMjQ3J6YVSkpZg19dGj11ej0o7i3l3L128Le5CAiFU3mXKMxaGBggCdoEbQoG0wc0WpdXcredla0m1VCsSoEmCzbi3IiTgYiBU4fw4Osdr0+6u7f2+UuzK7c06Bteel1Tr6xU39vWw2RECipUR6nu1wLOMlvLD0KRbxXm0OmGtNN4/ok13hd4sStzRK2ptGQRt/RpcSDEZgiMAFpExU77N6+5ovEbICBreoZdLdQiSNzjayEAk7XIbPILAyDW17tyansQhHCyUJCsEgDIBUeQDgHIHGftry9SVEiOP1jnJmYwTHp8+9ewqSDBgck84icD5RJ988VOb4ZIv5j1T2DFAJS3fsTlZz3EVzMiwJV5GO6MDg884HsdTFwlwmfwGD8oEH5weo781beF/Hq7IYk7mWMiZUMRI9lMwO01deOQD99Q629GiijRRRooo0UUaKKpJ/FsrlM3HSm6AITK29uiqUvBwow7KtmNpJ8fQJrihxkBRPuNWmjP/AIt8DlXVunVSPyB5x2zWW+0Ii7pnHW3cXGT8LqTHyYzWql8Z9jvqNtiopdqmicpd73SNi7hYuUWDSm3bZtU6hkxbCsUuTHD82sXVuM/KyUvOzI3ASVDV39l9Pp7/AIqlt13XlKXNOWdlQOpIYMFEmMESeTAE15x9obl5dI6ow8q8XtXAVBYE5SMiJAO7Mekyapkn9GW2mX5k3b9HMYbS6/ImwOo+40tocb3RRbXfQ4tW0pzCZDE7ctVMlR1KDkWA7JdkpTIiPRh6Lc0QG9mVI+Isy6m7Mh7alTNk7XBuoY52lpO4EVhFAgEKGAIYCSCT5nlyvO5FmCY9szSW7T0EYbmlXWzpEpjYli7TX93L3xXuiisIW5BtyK180vpy3b2TthZNr+QSyuU/8nFfmylxWYy2w2baguz2yy2mK3bj3ASjJeFpQLi2Q7bnPwSWwGJUHNBdTuAUIbTru2kE/FIBIKkngmFiBO7qKyOP1EjX9Bc7pq6ncsOLtK1o9sO29bZbDs9wRp+6nZ8emRtmbfbZsbRtNgaycRLpVwHkpbQtxaC6zlXmLctvdVXC2nVCQ1i44LsQottcR9pYhiGRg0cwM0hrxZWY2mAR1SVKK4LqxBB8suFJBkSFExETRX9FGr2/egopeodpuB3c9ntCwMze3T2TLZ3tAq13knbVpOlwmgNwSIbbqITLj7v5jYMSKqHIdsGVxk8+5F32hdQzbyj/AKWwzC5s8w23YiA+3I5DN8O6QaiNZVrkbbkuTp2LXBuFxVB2AlIO/gGVDEEAzTp9H58TodunbvVKNtzcjkekt2ZEaJe7i2nCNxN249VXNxTwG0V/zcmwrmZEWHcMsx1O1suYmMe6wYDKGtZobV7R6nTXPORL9jYLjPYDCDbuEIkBmdVIFxCRGBJOK5prraO/ptZbtuxs31ubGO3e1uAyEhMKOGbkcg4NbUfRHdV5unZG1NzbkpGts3F7UwreVQNTl2Cqpme2mTEiPTFR43qy0wnGFzEoYS21IUtlKlen3K8S1C2bOrvWbNw3bVu8bS3G2rv2mC8KSAobdEdsDNeuaG9evaezdv21s3LqC41sNuCbhuUBiFJ+HbMjkn0q2n4JGPzPqxTvqSXEVlVdze7BASsQFxW1ZwPCpQSM5PJGpKf+muMMiUUAZOWmPcxxzA961nga7tWrHIVHYz0JUwZHAyQJgdKuQ1HrZUaKKNFFGiijRRRooqr38Ura0W96T7NtHkrS9SbktG2JDZAW3+ZVKC40cghTb3yKSpJx9TaFAgp5u/B7aXk11ptwJtW3UrE/AzAxP/MVRePWw2nt3M7rbtEQJ3AYJPeBj59JrVL64dOoG/ak7etLK2gsRbmpvo82llorbSLY0cv5yvfjSnY8xtpTUhKHT/RKgUJweDrmm1F/wrXLqbG1rlvdtDyIMg7hBkMDG0ic84NYHXaG3qkazeLBSweVAndOFlpBBmCZ79qqm6yfDhuLYjLEPpZB3XuLbUut3E3bQX9yOF2A9e2NfNvI7Jq9vvSEsbgXArJ6lNx0tx5dOlSXmFiPjZeE/ae3qkv2fEDZ0tySbR810t3hd/1tzG2/ludlsliVBIAUqYjJeIeA3rD2jokuai1sfzR8O62wI2ABWQtb4JAUlds5moeSJVpIk7kdvKq1hTbl12FuWus987fixtxuGS3eSJk6Lc7KerLGUbWE1OXJkKbtkWjbS1IadeV6mpRjeVrnwkOQYOqtC3eBAcsN2nNu5uYA7i24OsnJM597Bt3GD2b4dhF020csrAn4HX8QKmWgidsHrB69vzYUSJuClhR58SJeXNTd3DMnd3TWWy/cVUaQ/TWEGU9sUIiO1ab+YqCILjLcKY4/hsPwklniAAOgYKHdXYNf0rAsq7gyt5IAKF2jbEXJBBMU1cS4F+G1e2EBtuxw0odsQUJ3GSykmYJPEU5FYjdu9bSxrINTvyxkz72TfWM2un7L9Ox3LLbiRJG8GpFVtBudNunGIjXy1/HjhZK5imHEPTpK3+ajVWbO8am+ti2zks9y9pra3G+ENdRiitcJAG24FMZMyTSV0lzUQbdm7db/AFSiK5ZXJbDhVEXDydwBAODHNo2xvhN3jvrayLXdPVG+q7feUa5mXVba7U2/PsK+NvG1p7+/qHZTYqHI7lxLoqyVbstxkuRZKp7EJ5hE2d8zjdf9ukW5q7NnTPft7r9tdSblpDdS4V3kbU+FXdA45OZwS1aPTfZa9qNPbvX9S9m5cQM9oobiozncyOWdSWBgv8KhjiDEm5HZ7imUQY6ldyWGozCkJyhJQ2whoFIAJTnsBSAogBPaM4IPl6EtdBH6zzE4O8mfi7iY65ExkVtlXZsUwYUA4AEgRgZiSJHvEnNXO/h81KXNxbgszyYu2VtJKgSUql2UNIwSccoYc4GOMgk+BeMnl6Fe9y8kegVWJn3kDvOeAK13gCfHcftbAn1LYH8v7Jta1CrUUaKKNFFGiijRRRooqCf4iFaJvw72Ent7lV246l/+EPx58VRzg8EuJH792P5uvAmP3nUJAh9I59ZV0I54nPHr3qq8YUNomJ4DoTiSBOSPUCtTffaUmW+OUqC1jyQCAScEjAyeQMnGOQPbTerG5yRMgtMdRIMSRJEe3HyrD3oZ2IyJWMDIAAMg8YyDmT17xh37KuoVaqTQxFTJrc2El9luN87ITAW7/wA67EhGRGEqQhvtDTZkNpSlTj3a76XpLi2ltO5S8wRNrbW3FQWA+EkwSBBMwJnAiZpi4zqAUXdBBbAJCg5IUkSeIzAMTiojbllncdy9N3r0LnSa55MaCJ9XHsBuQyXS33uvSIwgfNQkdq2WTIC3FKQGgEtOtuqutPcv6S0qaLxkWngsyFwLJSQVG1iwLGcjAIGOKgahbeoYHUaDzEWArqGF04GSRt+EgxEmOJjNeCs2R0ueudgpa6WbijQd4qlNOO2Ei1ZkVExmYqHFafRCCClhzsXMlSnZbYYiFopC3X0pS9d8X8YFrVFvFLJbT7TNu1p5uLtUsUbaGBAO1AJJYc4pk6PRM9lRpHCXQZ8y5dBUhiAILZBIE7iAFAMEwGkX023y1tR2Jtuu6R29QpcyMmTJ21WSk060TLB+G3IdnSopsbCQhhlMh5yZho/1WRJZbY9Vym1ejfVltTf8TF6VZgNRcD3pVd2RugKCdqgGQCCAcw7bvrpwLVvRsijb+BCqfExWZiWMCSTBJBE4mrDtuqSCntwfq7U4KuwFI5JOScKHIye0ZBxnVEoAUAEERzGPp6VaKPhJ6EknjkxxniQM8561I7Zyk9zI/wAwOMZGDggDPgAckYJ+37uWh8aSBOPl7e1IAO+Y4EH0O2TiT1MDp1wc1ep+HxDC6be9iEgBv8igAgDH1/PylJB88die4e305zgattUY02mXubjEQeVCCeMcnnkz1BrZfZ8Hyrp6fAP/ALHjn2xGTVj+q+tDRooo0UUaKKNFFGiiop/GxUuW3w19SA00Xl10KutexIJKW4NpFVIdwAcpZjuOOrPhKEKUSANWng77ddbGP0lu9bz13W2IHuSABP8AQwPE0L6K8FEkAN7AMCSPUD5Vp5dQllEyWkHGHVDGee7JxgYxnA85xjnPjTmrAFxgOBuzI9+esccfWsC4+NznLEye/Mf0phrJ36ldxKgTjPOePIx7cnnGffGq1mgevT+tNkSPXpPQ9DSAFKUrg4SecE/6+3PjkkccjnzqK5UkyDIJ4jmfX50+Fj15j09u3rSlFUpJwFKIxlR7iQrk/SQSSoYP05zk/wDb7tyOTHX6wY7U22Dgk+s5mnBpXQCgYUCVDnJwfBGMkDGOOB9h7ajlickxjI6cR3Ptz1PNIbPUyOM9Y4/vpT27fdKVoAOSfHufpwcYHjgHgH258crV1VQDPvIP78c9yKSh6fs4+R7+v5dKkZsx0eoySe0Eg4yc+3jzweSee7APuOXbLEuCeAwAgQc8TJ9s4HPauyQ0QCIxHPufQd/bnNbC/wAAFf6PSa6tO3tFluhTCVYx3orqyE35wM9rkhYPnB848atdWwK6dROLRY+7MSPqAPSZHvtvAFI0bMRAe5IPcBQPqDg9jiTmp3ahVeUaKKNFFGiijRRRoopA3VXsW22r+rlRmpkaypbWC/FfbS8xIalV8llbLrKgUutuBfYpCgQoHGNOWmK3bTAwVuI0zHBHXp3pFwBrbqQCGRgQcgyD/fIrRv6zP09fuS2iqafre2W832YVIhpKXFJPpOjuebT3Jz6b4UWxx6xA1d+K21W9cNqFG9iUOR3JVhkSeFjHrE15/fRXYhDBAkgxHGIgk+mVAnmajfLkRX1H0Jcd3yR2uJBwDj9PCs/fjAwc/YZ67dILAgiFG0jIkzJJEAx74+UVF2MCAwMdxMf9TAmkgId7hgBQyPCu8FX8j3A5OTyPHtmN5i9T8z/c/UUssOJIbpMAR6yPQwR86VYaXlKT9BHcQATg8YyOP/v34PjHLb3UIiYIzmBjI6nr070zWc1KFp7CspQMkgqWntCQcZVknKirweT28jBHLBuqDzOOxImO/b5DqfdphJHqQIjIkdf3/T0MOxS2kSOtAemMJx/7qckjH6QCTngnAxnPJ+3FugggAyPSFMk94AHuacCmACTBiDERHv8Al8hUidg27EuZFbjpfeR3o7nAktp7Qof43Bj+CEkHI+kjGp+ktzdUuxUE8Lk+sEyACByCTMwOKc2KIYtI3KvvJBORGIjMdeZzW1T8LlTGp+gfTNiPDahGVt5uzfbbR2lx+zkPzFPuqI7nHXUOtlTiyVKSEjhKUgWOsI+8XAv4QEUCZgC2ox85NegeHKqaLThV2g2w0DuxJ+sRJ+lP9qNU2jRRRooo0UUaKKNFFcH/APP9M8/7aKK0hvj1rXdj/EP1d29cbfk7dcib1vZLMNiK4YTNZZWD8+rlRmO0uiunQJLMmBIjpejPMuBTJT2qbTcax0uoj2XLM1q2SrN8TMttVc7pGQ4JKxO456VgNakay/bP6JxcJCGRILFlNuOkHd7mRMYrvlTKyUpQhzory+4EttSEJc7hnhTSyhwYBGfoSQc/2o2uBWIuAoY/Wn4o7TzyZ79OKSobaJyYljM9zk/zikwJkJI7HX0/UE5T3gEZ4yU+3GMjPgnOdJmz/tMQO/HT+fQ+tdpXiOP94Qp6SMZzlToznPt3ZAzkgZOP3HlkhOSF94Bz075GP3e1EAjIkH6VmtVGefWlLipLicg4KnFIxnPPJT78/fGcZxhhigiSsnjg+nv0iol1wOAqwDgRM84MCJmMdp5p4duoqa9ba5T0VhSinPzD7KF4BBIShRDhIOSoAFWB4zkabNxZxDQYAWSZ9h8pxHr1pkF25UxmDB/ef4kxUwujba7+/qKqqiSpy7GwhwGDHYcQmS/MfbjsR4qnEB2Q+866ltlLDSwVKCgoDnVjoivmobu5EDKxGA0SNwEiAI6nueMUpVBKKW3F7iqqL+IliBAjgjknkR6VuKbbqY9Dt+kpIrCI0anqa6sjx2zlDDUGGzFQ0k5OQgNdvcSSogqJJJJkOdzu0kyzEE8kEmJr0y2oREQCAiqoHYKoHz98560taTS6NFFGiijRRRooo0UUaKKil8TXwXdAPiyqWInVnaKnryujORaPfG3ZZod7UbLiitTES6YbcTNgd6lOflF1Fs6n1FLcEJLq1Oa4ZPWImD1E9R2NQ9VodNqwBetgkCA6ytxR0hxmB2MiqHOs/wDw928X5MqX0X667RvIai45Hpuq22J+37JlHcS1HO59npuoUpwJ7Ul87Zg96yVFDKB26AXggtuXoGE9ZiTP5Y7VS3Ps+wn7vqivQC4Dgf8AJSTxxiep7VAXdP4G3x/063GqnY20txMMyWliXtHrFSMes00tRUlqHuBe25CA6AkYUhCgCe7GSkNXEDRNi2wEYwCc54K9O5EZgTUc+E+JI3wG0/Hxbx84VwNv5cdQKb6t/B4/Ekg2sxb3Rfdr8B9Svl2E9Uum6kRj6qVJ7Fr3z3Fvs70HuUogEKSAQcwRYureusbQa0+LaAj4MmRJYngxI55E5NNnwzxXaR5Vs5mQ9qeODmTxEd+pHD2bY/B0+PSW42qx6SIhoSAVC+6wbLjoGVcd4gX9ipXbnkJQpR5yFeNL+7uDK2LIMdZjpiTuGf3dM00fB/FIkLYtk8bntmPb4SR0ye5AE1ODpb+C/wDEQ6Yzu6r3o106jBbXzC2Zd3v29bSCn1FNQ6+ro6t5wAf01u7hAC8lTakE5kC1eIgtatAwT5aSZEQDOwGM59pBzTyfZvU3D/5GqUL1Cb23EgSD+CByBwB05q5T4ZPgD6SfDlMjboXMtuo/UWO16bG790NxY0SnKgsOHa22IJVWUrjgWoGfIdtLtLZLKLVLJLelWrAt5LPcc8tcMn5AQq9BgdPU1e6HwjSaHayL5l1eLrgSPVRwp9RmczNTr0/VpXCiQCRgn2BOBk8DJAOBnycHA5wcY0H60e/HX2qESfim3/TObqibl6G7ynSa2wuE0MrbVZYJppdZGsW66pdmy7RBs3HJgm11rLeg05VHpfzeazXPuVjEeyyx8f1ln7wt/wAJ1TNbuXVtNZtuLTW1uC3bZmuDed25LjslshbIuuqs1vy3+iz/AILfZjxBPBL/AIR/iT9ntNZ1mk8PbxOz4xrdJ/mGn1l7Rtq9fb0tjRuNHt033bV6Oymp8QUXte2g09zU2xrbtzRO30k+IbbfVWNSph0m562wtndxxFpeoLh6nhTNpSBW3bEzcIgt1MR0XLFnWwYcmSifJfq5aFxmnUFsWPh3jNnxFbWyzqLb3DfUzZuG0jac7boe/tFtT5gZFUtuZkIgMCBhPtz/AIW+K/Yi74idT4n4LrNLobfhF9Db8V0CeIarT+O2jq/Drml8JOpbX6i2dBc0mr1OotWDpbNvV2WF10bfX//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgAAAgICAwEBAAAAAAAAAAAAAAcGCAUJAQQKAgP/xAA9EAABAwMDAgQEBAMGBgMAAAABAgMEBQYRAAchEjEIE0FRFCJhcQkVgZFCUrEWIyQyYqElMzRDcoKiweH/xAAbAQEAAgMBAQAAAAAAAAAAAAAAAwQCBQYBB//EADsRAAIBAwMCBAMHAwMCBwAAAAECEQADIQQSMQVBEyJRYXGBkQYUMqGxwfAjQtEHUuFi8RUkM0NTgoT/2gAMAwEAAhEDEQA/APfxpSjSlBIHJOB7nTilQ6t35bFA60zqk0p1A+ZiN/fvA+x6SGx9lLBzqRbNx8gQCJBaYbmYHJiO1ZpbuXDCIWwTPbkD8u5EwKUdZ8RFHheYmn0aTLUkHpXIeQy2rnA+VKVLAz3yT3PoOc/CRZLOWAj/ANNTJ9cGYgkCTg5PFWl0NwwWbaCQIgmJ7yB6455PFKmr+Ka4mgr4GhUplIGep5b7xAzjPC0AnHp2PfPOsbpspgIzTA8zhZJxGFOZ7SPY1aTpkzNw8SDEDHIJ7z2jOPlS6n+LTcJKl+QzRWCD2TBLhx6k9bqgRnjjkHHGDzTfUWFMHTSQSDud8R2wR+cEenBqyvSbJH43nvkcfDbxyJnt7VAKz4wt3oeFR36FlSVFOaUwcYWhOFdSuR0knnpOe/uIj1JFbammUEq5A3OcrEFsk7fUg8iYAqa30TTXCdxug+hfBHqBtnsTPpNd2l+L3d4NoXOVQX0uJCyBS22vlUCQMtrHABAB4JHJ1kmttMo36RVMEHbcuAz2JkkH3wPhM1gekaWfIbigdiQSSPXHpHHPPep9TPGNeIKUzaBRZA46vLU80o59eFYHAOePl+4OrNq/pWWTbuqp7pcU9pJhpwIgcbjgGoX6QkEpdYZAzDAeswBn04poUfxdUx7pFZtp+NkJ6nIkgODJ9gsK9ew6s4z2POpwNPcMW7rKMn+qsfAAgDAHc/Wqz9Lur+G4pwCJBkz7A+nvjPpTvtne/b+6FNMxqsIMp3pxHqKCwcn+EOAqbznjKygE8dyNZNprgXchS6sEyjDdA/6G2sZ9gfnVO5pdRa/FbMeoyIz8+3pTbQtLiUrQpK0KAUlaSFJUk8hSVDIII5BBII5BxqtOSO4MEcEH3qvX1r2lGlKNKUaUrEV+NPmUefGpjrbM91jEZTqlJaU4FJV5Ti0ArbQ+lKmVOJBKA4VgHGNZW2RLtt7g3W1cM4Bgxnj5/wAia9ETnj2qgdzzWvi6iz8Qhipx330vU2pyExOqQ250uMs1RQcgeSD19Dz5ayAgdJz1a213Tak2xe0ipqEZJFsuLTwy7lXcw2KRgHcwHM8idlp9TbVVW5NtRjeqllCmcsqAsSO/PaR3pFXDL3GX1/ldnx5bPmAokxavDq6lJCgV4YgOpWodIV1DJC09QScq1yuvufaC2v8AR6NdUBkbd4wuNyAdvg7pUSysCfMs5Eiuh0a9HuR4nU0E52lGt5OBDXNvaDwM55ANJqvVLdFIdEuiTqcMKxi1KohHOeoebMRJSsAY+YHowc4I41zGt132i2sr2VsTvBH3JyswQYNzdCn1yY44E7yxoujuAF1Au/8A6rQkwZHlC8nKwe/OJpWT69dqHFh+qvsKABLaqZAYxwBwFwUryfqTxjt21ornUevAkvrbwJEELZtiIAXnwFY4gAESIBEmDW2Tp3TSqjwFPoWuszYzBhzIxGMHPaofUapX31pLtYlrKULOEhhA5U2SehDITwAMZGB2BAJxqrms602oV11+rY7HHCgKGKwANokyBmJAx7Ga3oNCJ8OxZGMzJA5AA85IGTHrkkSKy0KvXQtKEMVOU+A2lCUKgwpauMDACoq184wCCOwP01Ys9R66E2prL5YENPh23mDJCjwzM8AGCSMSYNQv0/QqZazZUiAYuOkzB5DmOBJAwZJHrNqVJ3IfKfhKFPqS1EFKU2tVXirHpinNJwcnkAdI5PYk63Wj6n9owEi0b7GAQ2heDkDzPbVBn2GTABFULuk6Yst46JzOzUoWETMi5McEbozg88Nug29vRUykMbXVB8EHL7kgUVDZKT0KW1WC0pKOohRHVkDjGTxv01P2kvIwXou8lGCuC1kC5Bghb8jaGiZuKSJkRNam8Oj23BudUCDErtF0nuQPDAJ7wcTjirQ2Zsjcs5MOZccuHbiw2hyVChSW6xUGnAgFaEPxCIDRCsgLU870Ecpc+bPV6CzqzZs3dXbGjv7Ua7bFwORdCiY2MyKC24gKSVGGYzFc/qeoWF3LYLXlyFuMjWlbJghLnnIiO0ntnjYXbdMVR6NCp6nFuiO0lDanFlxxLYSAhK3DjrVwVqUAB1rUEgADWd1zcus0Y/3TJYjEkeprn2O5mbiSTjHJnjt8Bj0rO6jryjSlGlKNKVweAT7A68IkQf59aVrF3xiKh3xciUJKAmqSnUFJIUlDoS8jGCBghXfGe/bvrr9ApuaS1EGVmM8yQfWIgiRPAisg0CCJzIz+0fz51W+fUpMdwlt7nOepbaVKH08wDzMYyThQweRg8iy1hxkMU9hwSfiM5+f1ipFdDIIBO4YJkAR7QRJA78/KsKb1rEUktSpKSAQCxU6kwQc+hTLIGccDAGCRjVdluDJIbEQwUzxBEzwc/wCKn22oiBAIkgKCMxEiTHYzExk81+7O6dxJ/u1VWvhOcAIuCX0jk46fMQ50pIGOD+/pWuoWVgbVolhtJNpQxmPwsBIOM8k5EgYrKFBGwkADjcf0UgxkRkCYqQQtx6u+U9VSr2CDnNad7EnuUsAkDngdvQj0j8AH/wBmwAeALKEcmMlDOD+vrUhdyT5nE87XdfrDAn5k0waVeFSf6QZ1WUk8DrrEtXUMcZSCjnHcHB7dtZC0cf0rSx/ttKAM9gVj9Pj3rAvugM5Ye7SY4OSST/mfWmzb1SfklPmOvryBgrlylElR9Sp498ZH1SPtqMgzkjmDCqJIxyAKhubQwCZGIPeRJPcjMREcGnXRmmV+WpSAonpJ6ypZJI5PzE+g9Mjkgc6wuAnMkgAckkycGM8cYwOOSMQM0EqoAMCTHGePy5kfDkBpQQPKabbSEhxxlsgAJ4WpIwMA8459+cE8nFZkEd4UTzjGZ+vPb27jA5MnJ9Tzjj6U5gOkADsAB+wxrV0rnSlGlKNKUaUo768PBjmDFK15+IiApm+6uSkBEmPT5bRIwSXobaXD9cPIUk/QZ411vSG/8nbE+Zdy/Hzn5/hPOODAMVEzMCQDA9u/x+vy/Oqh1aKQScA9/mwR3zkEdx9e3AHpragwGGDu5nn4/wDeayQ4MnM9+Tj/AIpbVGMepWUDuTx2HIz7k8d/bGeB3xgcR2j8o+NSZBOT9fT4f81hBHR19RGD6emM+g9Tyftnk8HWDIOQY2gmJOZHeT6+3b2pub1OM81I6YxkoxxyM5HAz6/c+g479+AdRAyM95x+38/Ksjcckknkz2iaa1CaIUgZwPlKThWO4Bz39Byf21gyxkEcjB7+sARj9KbyORP0x7/CnzbSVBLYOD3HrxwPtgZxn3OBgjOq7IBLDHGPeYx3+vpXm8xHH6/nP+asDQP+0T34HbjkAkn65PA499Urs7mUZxPvMj8vlWDGBM9xM+5j65ps0VPmSoDWMhUprI/0pIUf2xn9NVLxi1cgwdpj1zgV7Tg1qgIEDtSjXtKNKUaUo0pRpSqWeJqB016mTBkCTRUIUcDlbEuUk/XhDjXrgZGO5z0HQ2JtXUnK3z6YBVWMQO/miRmDkciNxke8k/ID/FUjrDZysADgHB9ycj3+uO2SAMcnXQUQCJkkz8gI7Rz86WlQZGVE+hBUSc4/bH04575ydKkrCllIXyQMngn9PQnB47/XUdzG35/mI+fP8NKkFMZQSAlaSSQSOOCCDgjPHb9j2OohAxP5+8frj8qSPWmlRG8KR68DB9OfXODwT9ue3bWDMCIGZ9j7fD96U8rfR0pb9/lzxz9M9/c/t98wOcR6/sRSnxQOyDn1SOMcjg5P9OMDOqVwHeSIEqI+vz9P0rC5+H5r+vxHx+XBpyWwjrqcMEcIDyzx26GlEd8/xEcn39O2tfqSfAYKeSp9uR3g4/LvzWdNTWvHAnnvSjSlGlKNKUaUo0pVWfEzD64duSwOxqUVZwcHqEV1HI9UhLpxjnOBrd9FfbcvKADIUnic7h+sZ/zWD8D4/saoNV2j1EYBJPSBwCSVFIHc9zx788DgHXSkgd/T9AYzj2+X09tgwRBmZAjnjERn/j6aOfGD+J7E2Tvdy0dt6RSrgcozs6jXI3dVt1Yzk3DFlTm3XqMxHva1jJt+noiMR5NQeQtNRnVGOimupaiTFDR67rI0j+HaQXHEglhnduIAADKYEEzj25muS6t9p20d4WtKiXNvlcupJ3ksGOHUFAB5SwG47l4EtQpX4gHjo3RiOXPZkWPatliU7Ebueox7K26sJMhlQ+IQxcFcQzWJL8cqDb8KBelzyIhPVIOTxqD1fqF8lrCAKGgsRbRI9NzTODnzGMAnNaM9e65qUNy1ssWWJUXG2ae18RcYAmJztJPaYIIbth7t/iFXTQ63cVleIPZa/qjbdJl1qp2XZW5E++7jEeGyt9UWNGi0muURc6SlpxqnxpKHmp0sIgsh55xLevV1XVboa5a1OnuhQWNtL9t3gAkgKoK7sEjMETmZqzZ1XXryXbmm6lptQ9hd5s29RcvvAAJAXw3V3jICxunDQcyqzvxYPFHtLS7Tqm+e0VUfo97Up2rWfNuixottz7opcZxDTlSo9Ro8iwILcVt11uO8h+1as88pbchExDaiXKy9d1toD71pyEYFrZdDbZ4MSpSN4U4YlcZgQKqH7XdX0HhHqGk8t5WNlrto2/FC/jMqLZ3AY2tIJIBjFb1PBD4zLM8UlBbQ2IdFvrortZ/s1CD8iK/Z9Nl0GNGrLFQU/KQJTS7ipkKtU+QtiXBqLyEtsORXEPndaPX29YhOFuBbhK5PkGw7pIgRuAYEyCRiDNdd0Pr1jrFsCBb1MM5tKGZfDDKFO+CN3nAZCdwbgEGRtHt8ABHt1Af7ZAI7/Y59AcY145EHaTwJmfxT5sn1njiOO9b1hIjGcg47ZET6xHtzTus5BXOUs8+XFWvn+FS1NIx9wCr24J41Q1R8gzy0RjPfPeMdu8VlTK1QpRpSjSlGlKNKUaUpB+IeH8RZsKQBzEq7ZKh3SiRGkNKx6f5ugnP8o1tOkPt1TASS1lsZiFZSQRiSR6mMZGawfj5/sf4PetSfiQuC47P2W3buqzz03Vbu3d2Vi3ljywtmsQaRKehSGkvBTan4joEmOFgp89psHPY9Lfdls3LiRKKzAkSAQpMkH09M/wCKutu3Leh1V62Bvt2bhTO0ztiQScETzxg9+PCbujVKhXrzuOo1KQ9Lkoq9QgJkvrW6+4xTJsmGw5KfdW5IlzXktKkzpsl52TKmvSX3F/OEJ+d6i41y9dZgdwdsE/qfcyY4E49vjN24z3LhdiZYkkydsk5BOM/iE7hPvVzdoLw2cvfYVnandbcFVq7hWTQrvhbLt39Ztj1mzKPW63VJFeplPFWqllVm4qbal1VOY+mZOLk2NQ6+Vvy3INMmtTBbs3NPf03gXrwt3LVt10/ioptlnIZQzRIQkQ0qzAwRFbrS39Jf0H3TVXhZvWbdz7mbttWsB3JbaWNp2Fu4TLHMMIUqPLXa8Gj272wG9dPvy7L2ufZ/aG3K7FuDcxy167Fape57NCjyJMDb+z6Ba8p+m7k3JXZTrECn0qhw6nEo8eS/Uaq5SoDciS3B08anS6ve91rGntuGvsg227iZKJbCqC7NjaFyFksFEkYdH+8dP1i37l25Y0qXGu3vCcn7wACUsWkUgXHcwocIdqgsciKU3iE3N3N3Iu6fIv2nvWlRZt93/uFbO3E6Sv8AMrde3LrSa5UJc2nSJD9QgGTBZo1PhtTG6ZFRSafDRRKb8MqXNl09dfv3rjFwbaG7duW7ZiVFxiZZSZQ7QIA2jzEhSpNc/wBZ1er1V5vvCm1aF27ctWCstaF64XYsollxtBBggqdq7WNWz/Dt3evXabe60HrLDj8qZV4hepzDfWarCmzKXS7hoklhIKJNOuCj+U1OC+h+JMpFErMKQzKozSXs+m37tq+uwKNxWSDkiVDjaTtKugggjkKZkQfPs7r9RpOpaYWSyh7oGwFiX3FFdSo/ELigqRIIMFT5M+7ejtJaeW0lSlpakONJUSk9YacW2lRxwVEJCiQMHnpwMY664IDgT/0kmf7u+M9o4POK+9XCYmM7gSPSTmfYTFPSykfNMcPo0wgc/wAynFHjt6J1rdWT5B28x474H8+XrWdT7VOlGlKNKUaUo0pRpSlVvRDMvb6sYGfhnIUv7BmUjqP0+VZBI5wfXtq9019uttyJDKy/Mgx85gjn8JrF42n+e0/nXnl/Eapm4Mvaa3o1i37PsqDcm4du7ZbgRm6HAualV2yN0XHLUkt1K35y4xqL1Oqz9MMRmLUKe+8zUJ6BKQUtHW/13ijTv4VzZDqtzyhwVc7T5TAMHbAOcnsYGk64t77vb8K61lWvpauFQrBrd8hGBDKwkGNojnMgYrzjXDsDbv5Zcd2PzNoL9j0qBulXKvKptHumz35E3bObYbl7Uxhm1LygiXUaWjcJEmrOxkqgw3qbKYEp9D7Lw5e5pVi9dJ07qGvH8N1CWtBC6kW2ncgJdwJ27eRM1wz9PRrbOr6e7HjbnFq5bLeFdtq0FLgAdVubrjQQpRgIBBr8KhZa7Yn710edZm3M+kbFyLho1/S5N5bv1SnQ4Vt1a27Zpop8Gv1Gs1mXFrdcrEdFFg08topcd8T6xGpsKKhzUJtbTqFNu2w0qt4p8W/5UUKdyi4eJcRK+8jtJ4dtF1SXLVkrokbxy1zUMsBlUNaVmbcTvElRAzuYYNc2xvDUbqoG6FVtOjW/SKTs3aNJuWqSqHeVzWrUajb0mr021o6KFW0URVywXGq5W6etcc1eiMIjNOLYWMOkQjV77d8qoVdNb3FrdxlbYWFvyMbW9SS6xuYd/UVGNct6zqjbRFXR20ZvDu37b3Euv4QW2QD3IlRAIkCSIMlouwloyajc6bisSxKLVrSRtjV9y3bm3T3dK7Di7w09yv0Ot3NKpqgivJhRHozt0roMqoVSIh1+e41M+EmuCE6ZSbimyge2bDXXfU3zsXUKGRmJB3DaVZghJAbdkZFG70zTF9Qt2zYtNZfTeOzarVkWV1CM9ti3ikNAhnAmFIIUgkB+W3sNem0VySKxA21tKiXJa9aYolNFrXBute0upVd21J+6UWo0aJVbybpVWtNFg0Wm3tKuZDxivUSu05mnw6lM/MosV90excLeDb3L5Vh79whipugjzqpBtKXVyNpECWOKpnp2o0Vw37diwt2zcC22Q375ZxbOpDrNxQbPgr4puyPKwSDuIHrd8H1ybmX14f8AazcDd+rU6rX9uFbMC+6saPRKdb9Mpka7EfnFHokSnU1CGQaZSZERmXJcU6/JnqluqcLJYba6Kw919PZa/Hi3Le87BCgEgqI4JAOT3PoIn630a5q9R0zR39c63NTfteLcZba2k/qMWRVRMQlsqp5ltx4ir/WWjEGSv+d9AHvhtpI/qo+v7apapwbuwHKrMH0JOf0E+3zO1qZar0o0pRpSjSlGlKNKVEL+ifHWZcsYc9dJlqHGcFpAe6v/AF8sn6evGrGkO3U2DAMXF59zE/KZrwgEEHEg54j3+XNahN3dt7J3UtyfZe4duw7ntadIgypdHnrmMx3ZVNlJm0+SHIMmLJaehSm25Edxl9C23UIWkhSQR2BtpeR0dQykgsJJBI4GCOCO5z3FQPYtamz4WpTxEbaSDIwpBAwQe3IIIzBE1pr8WH4fD8WBAneFCyKLS4ztNuONd9pTrz3CWzUX6s7CRI/JqO7uJRIcz+1FIcqdPuRmRVoLDy6fQ1PJfZVLQrT6/pjLbUaK2Ji6biM7hW8TaG5eRvH4omcdzXN9V6BcYK3S7VtRtcXbTXHKlmIMqDcEFwAGhtzECWmSNN9ehX7adzXBE3apzNi3fR2HrenCuXfvTTWp9Eq0OPEmU6fKW3drjFPnxYzEF2nV6E5BrECJHkwH6nTExpJ524LilvGTY6rsE3b8PuC7xlSNkDawcGREQASvGXU1Fi7cGqti1dUG2S13VAuhEOLgk7pIXaSCMCCdoIjloXZRKXV7nfi1FNsSLrZoibnrEbd/cNyHcseMuVVKe1VFMbcPPSE0So0OmFqG7HdTFnyqE+15Qjrch1BdRXujyIzrbDkX7rC4uSAxW2wIBAEASMZkVVTUBTcChbe/ZuYX9QfF2EMA2wEBVgTMSQpB9LKbbbb727u3Eu09rbMurcGJAp1JR+eR9zdxplPehG3nqTBZnIqlFtt4R6VRqrUbao67wqVEp0inKqdNtyeuKp5hEotaq8wSzaN2dpL+LeYZG3aS2whUQlBv2AEwgYAkSW9J1DX3Db0ula+kCbhv6gplNvmEoTs3FVViCASAQCa37eGb8OCw07csDfCDfTV11Zhmj1O2aPurekGiRLTolNXQraoM5mnXNPaqBiUmTU4qGxNMen02eaNGT8KhfmbjT9Kt+ETfW9vKbdovudqKICwGIAC+Ud47ZNdr0/7KaX7so6gt86hhta2upu+GltF8O2p8zBnKFh5SQFcrlQCN0G3dtUizLZtq0bfjrh0K16JTLfosRyQ/LXGpNHhtQIEdcuS45JkqZisttl6Q4464UhbiypRJtFFW0ttYVVVVUdwFG0CDJwO8k4+ddZZtJZtW7NsFbdpAltSSdqKAFBJkkgACSZPerR2ojppCFEAeY++v9OrpH+yf2xrV6kf12JwQqiCMwQCPeD/zUlSTUNKNKUaUo0pRpSjSldCqsfFUyoxhyZEGYwB7l6O62Bj1z1dteqYZTMQymfgQfUV4eD3xWqi5GfLkvp7dC1J7YOUkjJJAHP14GfTXb+/qAecTE9sY4n09sUHA+A7/ALikLfzVzmktrtMp/M2qtSXpLIVTW3plHak5qsGK/WG3KbFlyWfLbTKkpCmGC87GV8WIyHDsfDGxgfMP7fNB5AJHBmDzMQvc1HeNyB4fO4FuNzLOVUkiCZyTgiQJYgVT69Iu5t01AStxfDfZ+5NCiQ6VBgUxhmlPXJCm1CZUWKvVaZWViu1Cn0qLGYiuSqVAq7L0hMtqQ5IWw44zEoXRcJ/qaW3eWApDKpIk+Y7tu6AARjAkSYNa28NRdhtR0+1etFlSGCtcnmfEYSigAMFVoEEQGOYwzspt7Bi2XclJ8FlOjTZ941ClXTQ3VXZWK1SKFHnMU+nViEiPc0SmMJmGV+ey6hUIsykxKNTKmxCRVqk/SkSaraWwEDroVX+oQVIYsBKhCCIXaWy4P9oIjdAqt9x00WLo6SoLXG8RNu5gobasEECP7nbEIC3NXIt9/cbbufUrMsHZy2HLRaqdVdt6dbEGm2db8KmJFvIiuyKLEkR2K3VXzPrUmZKcqdDk1s0hDMLqkuSHmZwblsm2lhNkkrtTYIXbBmTuIaYJzzjM1sFOp0xZLGntGzuubSiizbRFI2BrazvfnzxkjyHIq9NomW7T6a7UYzcOoPQYTlQhNPJksxKg7EZcnRGpKcpkNRJa3o7chJKJCG0vJPS5qSYktAJUkgSYJ5B74zV9CSqFgASASB2mJAPeDMHH5U8KEknp6sYGQME5wf8ALgdvYHJ/UdhQfOQMRz8z8+4/bvXtWQoLflUeAnGCWAo+5KyVZP7609wzcdpkkwfljv8A9vSlZfWFKNKUaUo0pRpSjSlBGe+vG4OJ4x65pWre/wCH8FcFZi9P/T1Kaz/4+VJdQB/8ex7dvXXZ6di9m0xjKLPP+0ZyO8/UVghwfjA9h9Ph3+VJioA9SgQDgKP6kZ/fjjU3aO3p2+lZ1gCnBGQPocA/7H15/QnjSgxxj4YrM09IHZIwD7ccnJPHr3Oe+RnnULfiNIgk9zz+lMmjJytKiEg4HPGRjGecZ5I5PpjOO2sSJkHuIJ7x/wAdqfz85/XPxpy0IHCCQcAJJz7n1PfIxwSM9hkaruDDBec/MAyRjvAP5Y9VOSi5KUjIHsBnGeOcdsZJ576pXCcACMSRx6wI7QQKVZmC35UKI3/JGYT2xyGkg/qTk/rrRzLO3+5ySMQD3iAMfrzSu1r2lGlKNKUaUo0pRpSjQ/X4UrXDvTETGvm5GgCnqqDr/uMym25IPpj/AJwA+59Ma6rpz79JYYzJTaZEGbZ25H1+ODXk9u/8/nvVc56cdQGQRwc+2c/Q854APp3GdXq9rAkDJHfB/wDvj+mlKzFPByjvkk8fT047cg85z/XVelMmkY+X0xg9wRj5QAQPYnPHfkcc6fKfYc/L37U8wHP4gJA4wZ457R+08OWhAlKArsORjGQOex7Z9vT68jNa5w59yfgJnPrHcilOShNlxyO0MlTjjSAR/rWgY9ief1/XVO7G0HsJPtG1v1MD50qzwAAAHAAwB7Aa0lKNKUaUo0pRpSjSlGlKNKVQXxExjHvqa4AQmXAp0kEdlEsGOT25P+H6SM44zrpuksG0i5Eq7iBEgE7vN7mZHsecV4ByfWIx7dz+n61VOf8Ax5BGM4OD27njueARzye3bWyr2o6RyfoeD79x/T399KVmICsFHOcY7cjI4H1+/wBNV6UyaNyR9kf1B5xx2GeD69u2cWJAxAPOfQTxPOfz+dZiChO0giIJngk9uOx/P5OihHJR9cH64yf/AM1Xc+Vu84PzMH9awp3Wkgu1KloB4MuOSDg8NrC1foUp/Qk51S1Eiy0YgflBB59q8JiPcx9asjrTV7RpSjSlGlKNKUaUo0pRpSqReKCOWLho0pKOJdFUnqPCVLiTHE9GfcJdB45AOT6Y3/RjFm6k/hubuIJ3KMn2x37j6v5/PrWuW6Lvvuh1SoBzbqRcVvtvzFwqja1aiyKx8BFQytPxlvz0R3n6jNS+tMKJTX1oW9EkNyHGEuRXH9qzsp8tssO5BUdpiGIMmRAzPGKrNdvoTNg3FmFNpgWiBEq0SSSQIJOIMGJXzu+VvxJNR/NLbvWlQKQwVVGpvUB2axGqAniCmlGPSXahMelqOXgWGHEJb8vzfLEiMp7Br6q0MrqCI3MsLuiQD3zkTkTAjOMRq0l9y3UVcEskDdEx6yBzzmB3qRQt9bDaffZkf2oYcjRZNRX0WfcctK6XD6S/PCoVPkJQlKVhS4jqkT0oSsqiJUlaRB46SQQ8gmRsP4YJkHjIB+BxXv3yysyt3cCPL4TZBE8iZ4JIiABBINNO3t5bbnqpYoVJui4jVXWmYwo9JSpCVvfF9JdemyobKI/+CWpc0OLiIQtlxT3lFSkYNeDqpRLjHaxAAB4YiCZgcdpyfU1n99tkApbuXFYCAqGDgtOYgDMzweROKsVY9y3JWptLC7IqdBoz8Eyp82vTIcSpQpioqXWKcKM15zjz3xChHky25TkRAQstF0dLmonNw7ZTYOTJkmRgAARg5Mx+lZLcuMwBssikAszMvlYgnaFjcY/CxwAfUcW32/Z86uQDjIaQ86Rjj5WFJyfsXE49Mn9qWsYi0wAn8PeP7o547Gf5MtWC1qqUaUo0pRpSjSlGlKNKUaUqEX5YFv7h0ZVJrjToLZW7AnxVpanU+QpPT5sdxSVoUlXAdYdQtl5IAUnqShaJtPqLuluG5aPOHUztdeIORB9CCM/GlUTvPwnbjQ3HV2xUKHc8MqPlNSH1UOo+WkcB1uQmRCWskkJS1JwcE9SSQnW5tdXtMsXbTW3GSR/UU+kfhMwPfkCcGpAygR2BkSMyf8fpgDFJCdshvjTHSHNurkWlBAD1Nfps1rGcZbMSpF4Dk92UZBIwBjFsdQ0bCTeRcCd4KQP/ALCMGMSRJr0lDEQCDPcfUkH6nPMnNfUHbXdRteHturxQoH5gqjSMdz1dWCUEZOcAnJKjjk5w++6T/wCeyPg3x7L6+w/evSqkzAn1gScepBnFNK3Ns9yAlplqxLijtowENORGYLDSByEpadfjMtJ7HpSEjPZPtE2s0ykxfEHP9PzASBOBge2MkE5NeblERA9wIMekARBPIEftVg7V2jvNRaNQjQ6OyeVqkSWn3wPVIjRfM5HPSS4Ek8q4HNW51C1kKHcnAxAxmSSZ7cbT6TWLFSBEgjsAIGfX19YHzNWTtu1YNuMkNKVJmOJCHpjoCVKTkHy2mxlLLWQD0hSlKIBWtWABrLt65ejeSFEkIIhdxnJiWIPDY+FYVKNRUr4cK0oJQApXoDnBPoCRyATgE84HODp3GYEiTEwJzj9fQZgxB8OBPwnjiRuOSMhZIE5IA71SyN4o77p71fgXRsdfKKgmqVWJai7bt256pRpMaKtVOpy7jqq6OhylmZWU5ekxIMxhigf8dabkN9EdzmE6/qVN5L/StX4m+6mm8C3euWX2EW1a/c8EtaDXyFJCMvgEahZE2x9/v/6OfZ3U2ek6vo3+pX2Y+6nTaK719Oq9R6Vp+pWLt2ydfq//AAnRWeoumuFjpw2WrL6i3cfrW3o7sl1xdRr7S7/0PdWk21Oi27d9Hl15VRhyYtRtevNRqNV6GHY1bptWqj1PYgU96JVodQp7Lcp1Eh5UZAeZjSXxFb2HT+sWeoWrLrZ1Vpr28bbmnuhLbWTsvpcu7FVGS8ty0A0SyZKkha4v7df6ZdV+w/U+r6HU9V+z/UdP0waPUWdVo+s9PN/qfT+qLb1HS9f0/QLqbup1Wn1Gg1Gl1V67aBs2Re227l9F8Zv/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwAAAQQCAwEBAAAAAAAAAAAAAAUHCAkGCgEECwMC/8QANRAAAgICAQQBAgQFAwQDAQAAAQIDBAUGEQAHEiEIEzEJFCJBFTJRYXEKI4EWFyRCM1KRof/EAB0BAAEEAwEBAAAAAAAAAAAAAAADBQYHAgQIAQn/xAA+EQACAgEEAQMCBQEGAwYHAAABAgMRBAAFEiExBkFREyIHFDJhcYEjQpGhsfAIUsEVJDNTgtEXQ2Jyc+Hx/9oADAMBAAIRAxEAPwDf46NGjo0aOjRo6NGjo0aOjRo6LHzo0dGjX5ZlRSzEKqgszMQAAASSSeAAACSSQAASSAOvCQP8CfIHj+aH/T50ap3+UP4oc2t7vL2V+J+mUu8nchVt1cjss7zz6fgr8XEBFGOrJWOeWhYljFzKtdq4SGXiGrJl3SeJIBv3riHb5UxNuiGbkyOY04iSQvJ4440EY5ZXEsqyOHSFDZ5nidY1NI/0oIy8nk30qirtmJAH7eb8AE9ajLkrP4jPemvHU7l/IfB9u8NPJDkFw+g6bgKkqWK4RZYDanx1y68VQK0hjkuP5yyyF3aJolii6br+Im65Aj/L4G0wM3JZ8rIViyRyAuFxMaCVvqRqOXFsg2PLWxCOC7HlMl5GWv8AdJjhjAKlh1yd2A4k+OgSfBA6MuexfyW7/wDaG5HrfySuYvuh2vqvXpQ96tfxcGL2fVIZPpQVZ951zGxQ1slhIPEfnsxi8fXyNFHku2oL1eJ/CQ4vrLO2s/Q9V4H0MdJY4U9Q7aPrbQfqMqRvnxs/5rbizMoZ5IpIFJtpUF0nLtuXikDkMiPiWFgJOFHZIUWsqqB2ykMD5GrY6lurfq1r1GzXuUrleG1Ut1Zo7FW1VsRrNXs1rELPFPXsQuksM0btHLE6ujFWB6sVHWRQ6kMrAMpBDAqQCrBgSGDAgggkEGwSNauux1lo0dGjR0aNHRo0n5HK4/EwifIWoqyOxSMSMA8zgc/Thj/nkfj/ANUB4Hs8D31nHG8pIRSxHZrwB8k+AP50axaxuYPH5OkfF28Y5bsn0jKfZ/24IhJKfQ55JX19+OPe2mCWI+pKFrsqlH/EkgEf7B70a6jbBm5ufA1oAfsVhIAH9vqtIxJ5BHIXj36/qqMWBB/ekPf6mr39+IFgUR0R5/jR3/766FrKbD4qY76j3+s+KqFX+qhI15J4Hov65P8AnrIQYwIJis2OiSwB+AS1/vdX+2j/ABr9q/6g6Q58xsMXk0ucMarxyzR+EY5+w+p+eRVJ548iRz9x9+Olvy+OfGOhJ9iLJ/yJHz/qL8e9VQVi3/3AjryaCX4B8H37Hx1EzmXcsBlLcwADea1rojPBIIDicozcg/pUlvXP2PPXohx/aCIHv+tewNft4r/TsqqBoEn/AJh4/jzfi/jVRf4pvzA2vt7qGu/H3tXsNm13S7vyw18pDhZ7EeWw+qXLJpVqFhEaxJC25WFuUxCscNhsbj7Mv1oqdpnkqf8AFD1LFs+Gm3Ycqw5MypkZohozriFgsGKlI7rNuUvKONVHN40cAqrFxjxcsscaM88rBI1tTRaxyCki6Bs9kCwTRrSZ8Zfj9iewuh4oSVI7O7ZTH0be35olrE8tqSES2KMFufmR6lCR5IYR+hnVS3iIz4iP7FtU+34ybjmL9Tc8mKN8gH7hjY7AO2JEzCuMV0zKqPM4bkOIAEswNvix4BFSmQi2Yn/5i/ap78A30WLdHoC7ErFeOWwCiBilWRFEZAB+uEVSSAq+LK6syj2f0r+3UmGRH+ZXggYxwOF4E9iRUC+KCqS4Jqj9pJANDWwyELTPSsyluu7XkPLWfYgUOh/OuuazAzAiCeL6EsclRyqxXopIwLENhGHhJC4Up/veKLyXL8gBtMYS5gnx8gRTwPFIkmO5FZolQrMMgMOLRso4oH4oD/acqGsm4lQOJBNDkykmMWePCrFmwGIu/BFHqVvxDzaJ2wbTrN9JX0rbdn1fCQzSc2ItbgtQZfXKPmzMZkx2HzNXHVm5DGpThXxYR+ZdvRUeRFsQxJWMse1ZubtcMhbnxxcaRXwo3ayx+jiSxQh3ClhH71ZimZGIsmVRVcroCgC3ZFeB3fXt4oEEalh1LNaujo0aOjRo6NGmz3/XMvlJsblsRBWyEuNDpJjLEkUEk0byCRnqTzgwiUhfGSGR4FlCxkTqU8H38HJjgEscpIWXvnRYKRdBlHZXs0RZB7o316K7BHt0fg/78+9ePfTT2u6ev4Z0TaIc5qpZvFp8lr2RtUVIHHDZXF18hTiViCyyWTCjKrMoKKZOnMYcji4mSX3oS8T4/wCU0T71Vnv260oIZGvhwevZHUn5/SSDfyKNWLPek/Id9+09CCO3Jv2qSV5WMaznPVpUVl9Mk61DO9Q8Nz43ErE8+geT0nJjyxBmmRolUFmLAgKB5ssa/pZI8fGl4MDNyHCQ4uRI7DpUjYs1/A65Dz+m/H7jX0x/d3UM/H9TX83rucrAMzz4bLU8rHEU58llEFgtG4HsrIqMoHse+ekoTBOLiyI5eJq45UYg/BCE9gjwRY0rPtWfinjlYmTisfAyMeWG/wCC6gEdHsEjogEnrTW7Z3YmxKT3MiMWkZlMmPrRWjWjWoefy6Xl+nPZ/N8ASTT10ZXdzHEtdIgx0913ra9gxjk7llRQUG4h3H1GAPlV8kHseBRB7oE6d9p9NZu8TLjbfjzTSkVI4hL01/dwPSlaPgkEe4+WDyny0v0peHzevUKicjwq4Ke6qRxklmNq5mopVCqCTxA49HlwfYqjM/HD0rjSmNOcsYfiXUcrs9kf2lexACjz5OrRxPwM32XGaeWKVAsbSuXkCLGiqXd24x2AigsSWAoHVLHw22ix8wvnN8kvknvMDZY6NkP4PpVixGiVcbA07YDB1atRZHWJsbgsV41TGJCqz+D2bkrFoqd9K7w/4gev933vcMeQ4+HCNxxIZW7gM2S+Hta/T+0AQ4kDuhC8mkYcg1KRVG3YMRzcl0KssMjxREmy0YaiwPuGrly6HGwL86ukv5OSGNIfpyukXCy/b6oAYt/tAlY5o15HnD/OvB+m6uShufJyWjRQgcKnHkrfa/2kljFZqRQCA0ZIJqlNnqTxw2xY8BdlQDQJ6AJNAq57pvmgwqjrvYO34V5bliWKOs7fl60spDB4k5nWSIP4klV4jkR+CrKA4BHHTfhvlOzZSoWxZJTiRGONpXkClplliQd8VFROD+krxBoXrHLiiUiKwJlUystgcA1IVez1Zt1P95TfVk6X6rWsipr0qxujhwWiafx8iD4vK0DMYS/J8YyxJA5KFOeJft+DuUkRUYJSNgzI8sjoewQGlH2up6VOAaroUADpnmlx0Yc5gpYjoKGYD9r6NfJs9iu9PP2A7e7Njrm9meaFI9n2rF52tJ5L54KvR1PAYS1DLFE3k1+xZxzX41DRov5iFpFXyYl89O7ZPsWPu7ZksU7bluJzYoY1AEN4ePjNCzAcSzvA0kjAcaIAo2DHc+RJcl5YyeLUosd2tg+/x0B7AV7anYo8VVeWbxUDyY8s3A45YgAFj9yeByefXWyPHiv2+P2Hnr41pa5690aOjRo6NGj/AD0aNVXfN7unjNfax2vo7XZwGezdqPJTfwbI2sZdqYlWjkjSxlMaWnxMdm0/lXhsR/Ru/l+WeGtE5ban3zC2yHDTJyoYsjJuONJHYAKlqZHZOTQqzUgkdeJYkd8SRZ34d+lM3d5Z94G2HLwdvUqxmxlmhkmfsqkMxRclo0BaRY2tAw75sAIYdvsztSXI8ba37aMjXSlauNLsaYHdrVxoU+pXryZjPR5G4asUYZoIo6cIlChYmVR+nQyN83RZWgR44Xlilkx5giTRKETklLHKFkWQAhLU82Pgn7RPtw9ObGMYZZ23HZUyIoJIMdsjBaMu4WQooWMh1JAPKRgi0CQACO1T+RljWMxP+bu6GakTTr+au66mBswSc+Ss88dXG0fBj+mUQ8sQ3Ic+LDqFbZ6h9XyZchmxNiyI2Y3OmLLi5VAgK0kTtBysUCbHZJBOpfk/ht6bzNriaGX1LFkBYyIBmx5+K0YHawsn5iQMvXAEEDjRjBN6TMZ8v/8AqnLXqGzYTtFkKBh4xeSfI0sjE9xn8YqWQjXKr9IlRzI8AlaM+o1lLdSHdGnzsOU5npva83ISNmEW6YvPGkWMX90izZDpH5smM0OyFoAsw/D/AB9raGTZ/UPqfEAnRMhMfnDPGrH7ni/7pCjsL+1WZC1GyoGujnu8mkrWyAk7a9jbFpKd8qjV6HDTx1pykZSW6bixs4RJXRRIqEmM+ar1X35LDRC+f+FHpCiSzPFNCrEEdPHE2AZXoUxAZWCjkB8Pc2w+oWwcyTB/Er1kyQ4k8ghmXJdJDHE5MU7wzFEVyChrkB2Ae61HH8OvKa9cx/eLLax230ftpLY2PDDIUdNu7Lfr5ew65OR7mQfNZFzFarSCSKEV1/ldvMk+I6edrwtmwsrIO3em9k2t3wMEyvhSZH9vEGmaKOWlQcIuZMRFMOcgIFiuYtm5u+QDJIpVq5IqDkDQ5HkHssbIAND5BNCyN7SNG8uTSKxAUbiFpLNdS55AAdJwWDke0UhiSSSAeS9RZMCyC8DCLKQy8lmdR9/EkB2KGiAQvZ7B1IxjyPSRyTeTyI+mDVBiftpgAPF1ddXrjC7Hj4JhHV17D1nrGNh51WvM6MWHmXscspRwv/xuOS3JJZTzvx7zluFRIoYkXiB9GIKaYkFgqKEWmq+69wffSMu2R0GaSRud/cWCUVqgSbJB+er8Ed6kRqLbDsZjSj9anUacRSTsPyFaIMpEjx2IlYyCPkhok4cDnzIA8unzG/Ny28jyBONhi3TEnsgrd0LPZv8AbTHlJjYzEsFLEfo6dj/ylgTY7+QR442Call2Pjhs6fRzVdIhDlI57EUsXiRZSW7Y8LTOoH1JLFaGrKzty3DqpJ8elskjjEnELSh+jdljdkVYJ/vE+b899MUwIlcMKYNRFAUaHXXXXjrrrT09auk9HRo0dGjR0aNHRo1ri/ii1MlofyjwuejjZMZ3A0jDZSGxGq+IyWFktYLI15AACx+lSx9gmQk8WP0MOABSP4mRy4Oem4RMw+tjRFgB/wCS5RvJ81xPdjsgitd3f8N8uLvn4f5e2TBDPs+8ZcIVv1GHNSLMidT30XeZaHX2UDY1EH/vF+Rx8kL3EikNdoVMjSr9NJEeN1ilhZLNXyVz4SV3V4mJYB+PUBw/xInwAI8gR5sCgIscshingAst+VnAYxNZ5cWDR3Y4CzVo7h+GkGfJ9XHjMTtIGLKiywzupDJ+ZgP2zUyrTEhivQfoXGTZ+8FXVJnt1q+91ksyfWlva7tz5mGdY3J8Hrz2GvpEDyTXkoHzViGJPsTjavxJ2OfgsW/PtcgAuDcYJmRS5I/8fFM0TebJYoOgeIPQ1Mj0Fvil/q+nsfdljXiHw0xFah+lvy2UYHDV44MxHsxJGkHUflz2/qZKdL+Tp2cgYmWKTuTjJ4Eovy3EiTNgYmnnjHJiMkkhLAMztxz1N4N1w9w+mX9aYP0JAEdYZ4AzrzB4h5+DICLVw0bWD1xK6YMzYN0jTifRe9wNG3MnEwslCzKOK3HjvMrAEggROreTVkg5BgO4/aPLm5kP+9uk3naZpp6b4/T8XYg+szySRrNlsTVkMEacpDIsVicjx8Y2cMBLJMb05lKZH9V7fEhBP0xl7fIsahewGYch10OJ7HSjiBpoO5epMWL8rB6B36ZWUwuwwvUEJmVlaN+UKNTcuRsEUQezWvp8F/kBh9L+Qfczs9Q2fF7BjNoqSZnXbT3kq4zKNQtyzLSxuRauK355aVsycyxLDK8M1R5IgsbRVnuG9Yu2bxjTwZ+PnbV9GXbcnLglX6DTxytLiSLKBX1TEWRwSIyxC2DWuVJvSO8+nfUmbs257bm7ZkTscrFxcyF0l+hKS8CmIcj/AOGw4kFmHBg1spBsr2X5Q0MVffHw6ts/hFI1YPJXw80fMTBJjGIc48LtIFb6T+SBeE5VeCek29d7FFyL5pRrP64nPHzxICBy3m2Nfcew2rI278Mt5y4vqtGp5IHpHAZgwJUEuVCAE0bWwLPxpvq/zCoQ5jxj1XL2R9YxLUs3cLi4QhbgxzS1XydohzyHZEJHJ8Ryeekz+JnpnFAl5ZmaymymNAsKvflfq5DLxUnyoQmvAu9SFPwX3yWH7nwsW1I+tPM87r1YIijTj2P02/YIBIrTidx/nFvp05NS12xi9Vv5aCWhWo6wktjJR4+6ix3pLeats80BeuoqQCjWpMxmdXkKkqNrE/E3cfUcqQbbgJte3giNpeRmyH9kjEnFY4eSj7vprdE04Fab9r/BjbE3ZFzsnI3QQMMnPmkVYcXHih/tDGsaEszSuAoMkhocjwPEVf18edNs9v8Ash2t1C6ZDkMNpOBiyn1eTIMtZpR3smJGJJZ0u2poiSx9RgD0AOrXhMhhh+qxdxFGrMSSSVQC+/8AP99c3epcyDP3/eMvFRI8Wbcco4yRqFRcZZWjgCgAAD6SIf5JPvp5elNMmjo0aOjRo6NGjo0a18PxuRPg9m+OGzIWSG5T3/BSnj9Ehr2teyCKwJ4Yx/my6c+18iy8cnmsvxMwfzW2JIB96RzCM/8A1KY5KujXKqv9/wCo7G/4UcsA+rcE1X1doyGF0eLrnQkg/sVU9d9ee9UR7X3GpJX5sQo/KEf7TlG/cH03kD9iG+3sHn9+uT8zbpJZW4gA9kmiKPQIIoG1/n313Xt8Aj8E+1CrB6sUfJHgeSfN6ihv3dDDSR/TSSxC0YdeCBIB5cj00bE8Dnj+UHgn0eOs9u9PZol+qeLA+KY3QNiwyns3Ve3fd1qTxSQxqQ1G/JAsAUB4A6PvV347OoyncqVnJM5vnwLEDy8wPv8AdlIJYAkBT9/X7gepm+3TR4dfTPIC7JH7N0T4+B134AvSkM0f17Viq10B1Y+KB8+3m+zrKJ4qGTrieDIQFvEFv1gleD6cRtwQD6BCn2SDwP3YMfNlxJjFPE5Uk8GPd8iSqgjodciBXgd6fuKyKCHJsdG7VjQs0e+iB578+1axKxW2nDZvD7dpuUlp7JrlpLuMvUZT9UMhPlC3gfMRSjlHjKsrBmR+A3qb7RvOzGDK23dAVw85OEiSAoYiB1LG9gK4J6ewQQDfsaC/Gb8Jn9b42Luu1GLH9RbS3PEyOl/Mxi2/LyNVUD2jstC2UgBtWI6j8v6Gz4umN517N4fZ68CRXZa1dp6VuwsYSS1GQQY/qsDIwYAgsfLnjkwTePRW6RzyPs+64e44TFngeXIVJY0Y/aslmiwWlJX3U9d6rX0/kb3tsCbfvvp7Lgy4AEkkhRZYZihAElgsAGoECyO7/kud7MbFKJMJVu2LczFks5ALXhiLH+cKGaWRl5HA4UEjj9zw57F6Q3DIkB3HIhSFeFwYxMkjk9AFulF0fHn3FHUvmG4bnH9PDwzhxt1JlZBA4KDxJWMEsX+Lpb78aejsbsFnb+42lUJ52uXdg27WcVI7N5uf4hm6NMxqoJKIEmPigA5HLHn31fnpvYVhaKKJOEULIAgXqieRJPXJqvkSbUg96ivqaLE9Pen9zMFkpt+dkTTEj6s8keNKeTEDsMbIBJpRQq71veQoscaxr6WMCNR/RYwEUfc/so99W3/vrrXzH79+yeyf3Pf7/wCHt419OjRo6NGjo0aOjRo6NGqFvx7MYV7KdktqVSTgu5OexvmBwU/jeqtc48vsPI6+D/cqOPY6jXqjHGRt3A9AyFSerHONwCPfogWB2R/GunP+GDMaH1P6hxVamyNmgmVb6ZsXOjFef+XIfv2vWnR3E7sCtakrrIWhZUkZzKFMch8xLwhBJB8VYoCFYlmDDkg0zF6NkyVmlARWSRxwIbvwVIYeA1kcuyCD0RR19AY92hgMaMSpcAAkgCjfXkWVodVRHiyCNRl2bdBd5dLXkrjy/SQTwefQX2OOOePv79eulMfYJMY19GwtrxaiLF35PYFk3+/+D/DmwyKCXF9fJJ/c9Cj83Q78+dYbjMorTrPZsrEjuFUSSqrPyfsis3LeQPA8Qx5A/wCfM7AyHQwYuLNky90kMTy2K6JCK3Y/yPwdKvu+zbZGcjd9223bYrPB87NxMRSAb7aeVCbUeAL9hp7MHsmLjjjiF1f5AZf/ABbrqoP7F0rED9I/V4kAHgk/biG5foz1VL9SaL09urnlaVivZoA3xbia9v03R+29aH/xW/DKNhE3rj02XPRIz0kUEXa80R0Jvx99E/zp59TzGtCaA/xKlK7nySI2YYLDFeQVjisGOaQg/fxjJHr11Ad+2f1LhqfzezbphcbUvkYOSkFWB25T6d2P08r8fOn/AGr1j6R3omLaPU+w7jIxoQ4u7Ycs/wB3gCD6wlJ77UJdkCvh9sj3HwWKw5SHEVhIkfCvNDE8zuB6YyyIW5H/AKgNwOQAo59aHp3YdyzcyNWzJQjMDUbSCNQa/uq1e/ZPxQq60lumPEoMjwxPYJH1FQEd99FboXZ7PZs++o9HbZcjk5LcylfqyMyrF6+mp+yovI4Uei/r2f8A866f2HZRiwwxBiwQICXPbkEjmxIPIHsL114JIs6gu4ZMMUcqheJZSxCqABXhTxAAHVnxfgfGrKvw4KEm3fK74+4WQM8FnurptqxGQDzWx2WTJ2CR75IrUZWJ9KAOf6k2ptGKqCSQBVVVLAJ0OdV8k/t/P8E65z/Frcvo+ld+kViGG2ZkS8jQ/tY/o0KI8mRQB3diu6I33R9vX7+//wB99Omvnzrno0aOjRo6NGjo0aOjRqnD8cfCLk/hS+S8PJ9d7p6VeDBeTHFkauewsrE/sCb0an+vl/wWne0L4DgC2EkbDvr9Vfz7+e/4Or2/4dcs434ipESOGZsu4wBfdnQwzj/BYmP9CfbWhTvuJE89mf8Ad2kVF45BRXCluOAG/USPZ5PsgEfaIY8v0WdQGNnsEgD3Bo9/P8fuO9fRaLFjyIYnLdA8h12CtjpqJB9qo+3djUXttEWFjs27SyzVqsMdlqcViGv+csTW68VLHvNPDYMcVxY781iOOu87UqNwxtCCJhJfT2BjZ2RNmTI30ccqV4sqxyZAcN9P7gxYBe2AFDwbPijvx39c5vpvaMP01s+RAmfv+PmR7irRNJlY20OgiSeGRHUY008v1Ejc8nZVdkVSOYS+2uTm7ibVdwuw7ounUJcNm8s38Fx9LFyZO3TrwyY7VMbZrQY+pSkyNhzDVtZ6+cRS8Faf6kxghnnUUaO5VWTHV+RqJFiDeCEH01SmY9Czx6s/A4rIyciblmZM87IjmOSeWSZ3ZSAiiSUuFkcHiGa1A681bm4Xau02nbbVwe09vYcvBJcgq5S9sPdrd9hzGHpyQ82rk+L0tNbpPJDE6Wo6Kr5TMIjXZomeTpJ4oFYLLHyAILc8h2ZQSRyKxcRYHY8k3YuydKw5i40oilxA6BxykeSVuCkjsLGI+TKewvEE/Pg6fruxpfaXWMQ3cjS+6Ww4nXN70SLc+2OsDH5Cxh5r2MzsGv5PXcrDuWXy+fdsjMZ72EH5KxFWFO+chNFUpRvNnPgxCMyxZEixSRF443t4nNhHR1nLcuYJCgIapuRFC18wwoUmhlkAmiGXicEMboBKYmTkXM6EMGMclt2DZFjTI9vO4VzOTT4nJyD82kc1mG7XgqxRWcbXkozXqc9GCCGSSxUrVrmUpzVJGnK/na0lWdPo/Rje6+mcDcMGQwYUUWfiJlZeEcGDFxTkTmLj9CZY4U+srgckH6wxJHnU9/DP8Td89I+p8Rs7c3yNk3WbB2zd/wDtbIzM+PAwTlhmzMTlN/3aSDkSz0UZDTqQq8ZhVdNkqUYr9Xi3FM0MgmTy/wBxH4IMRPp0YFWBQhWQ8jyHHVYbVusTTGGQBJIyVKn7SGS7DAjkCDakebBHzrv3dsYGESxSCaKVVeN0IdHRlDK6EdMjqQyMCbDWLBvVz/4OOkyZb5l9pLduDwbDybRsCxkelXG6dmyjnnj/AOOSzG/P2DBeOCp6sba80S84Y/0iO276I6Fg+9n2P7++uVfx0VsL0duUjNRyZMXGUA/+blRMf5tEIPXY76HjdfA4AH9AB/8Azp11w5rno0aOjRo6NGjo0aOjRqs/8X3Cfxj8PvvxYCecmAr6XsEfrkr/AA/eteincf0+nVt2GJPAAB5PHSGTF9eGSP3ZbHV9gg9DxfXv186sr8Is/wD7O/EDYZ7oSNmY5P8A+bByQB5HlgNeeLt2bEGRmgsOWpGZ2kAAZ4gG5YgHklfuSF5Kj2pPsdRHL2+WNZGRf7RR10KJJ4qLrs1XQ814719Iti9RY7/RSZ1MRJZmBIKgA2SBdgVZr568AaYXunjMbnpKDazbo5f60Va3YRcxgYhDZOOjrygRzZSKREjWKKPl40YTSWEKKQpkd/S+NvabRLDmYwxJI92zDEhdRJJhyRwmOaRWIrkwcJVjjfLiRWuXPxu3z0vvP4gPnbFukG8YjbDs8WRkYsiPjxZsDTxzY8TijaKEMqlUZJWuj502Oo6t3B1jYIc/gfzmEydJZPyluhcw16GSKdXgtVLy0c/FbjgnjIX6kCTSRSIsyLHZhruJjhw5KuHuRGUCiCrKR1YYBwRYH6hfuPJGqbyWjjt4lUgqeIUhXUAArRIIJB7NkD9N9d6ejYNazfdrPWNz7qUIJdv8qK5LO6vcyWLt7XBSrJVryZ+OLDZbxyoqxx1bmYxmIpXLkMSO/jbJsh5OK2S31MhbkNW0TEF1Hf3fa5LAfazBQTQNX1pmmmOQ5mmAMi0xYKI2lZVCln4FgTQAJUKWPd+4Re4uH3Xb8lSnh1LY85NisRS1nXYosdW1vTNT1vFwOlDB6pr9nLX83fWDyks2MtsGRgsZC/Ymv28bPZlZ+sZMaSRuoZZOKhEtfpxJEvSqiM3J28sWfiLPKj4GhlZTSdvyFRxoGAWNURL4xxIXJjjs0B2zUxNkkhP0Ltr3Ao7FgLd3XsnjK8OXxtmW9JPjo/y0MNyF3mZmyC+MahGjmZuCEZx7PrpeDAyFkhbgyqkkZZuqADA+x9x5/qfIrTBmbiixZKkhi0coAJvsoaBo9k31R7PRPxYTo+64yvi8Zr2Xhnxdulj6cSwyzQSqjCIL4qY3ZERPcUQU8mNB5AHnigN09Kbri7zmZjYjIMrNyZwioRUbzObQDygJqx57oVQH0p9GevvSu4ekNh27D3rHy2wNk2nAnmbJikZcmPboA8OSyOwiyA3TRM3IGhVAnWwt+B3Qjz/yev5GPxswa12r2zLV7CBSIWvXcDgPBmHsGRMpIYz7DKJB6KcdTvY8B8XAmllUBpHjQFhTf3yy/d31xBoV0dc5/wDERvUU+14mFBKriXcImcKbBWKKV1KlSVI5VZv2FeRrbV6c9ciaOjRo6NGjo0aOjRo6NGoXfiLa7JtXwZ+VOFhQSSydlN2vwqRyBNhMcc3C/Hs/7cmOWT1/9elYBcsYIvkwWvnl9tf5/wBdP3pfJOJ6h2bIBKmPcMfsEiubiM9j9n/qOj1rzFu4mRaPISurkeUxdSDx4gkFSSP6nj3/AE98jjrHOw1KSfb2QQbq67BNfwffyPbXZexb+yTQt9QgLIhssa+1gbo1xqgSQPbv20mads2vYuhiK2U0rBZiCv3BymVz+RyGN1iSyNMu08bO8OIkyd6nLYycWRjy1dYMgrVK+OyLvTlSVVaF02vJwo8DCgyJMdpo5FR/q8DIYrVVAaTjbnjRJJWmJsk0KZ9X+l/UI9T+os7bPTmfLsjbllbjDk48KND+WniTIyDFwkEnBJmnb9FgUAAo0j7PJreRxqYuphtZxOcxiaTNM35vtZC0uRwmkZTT9oxk8lrYorcUGYvPitojv2VnEmWW5at1VuRwzSPLwRWqCNVZBFy6g/UiMrp1J4e1PNjQPIkE1dXvuDTREIUBb6ZDhgBYj4P72AxAbyaJ7F9nEdiweNy254TMYbH61i9Vq57Wcg2nx5TtCya/isdSxMWcx0eSXcPPZhYno2mhW99NL6WWt5Borksqv48QLxFVVEVoj9K4KjVFUMeQcfUJIJFn7uVkA9DWlylZzK4QJzUhPqIQEUKCAGdRZANXVn9Ro6d7H0+3dXJ5O+mna5ka2Q3vetpyeMtWuzVOrsGo7HhcnjdT0aBz3Alk1Spp+SmgvyXcSkQtSStYqKlvGUxM7QwRHnIYlP1Z5JCCIQHjZGVIlBkJj+m1HlYBsEHogMeZnqzAKqsqvOxX6kdcHW40YBm4FSTxqwPIINaejWLXbCSPCvndCxOHtJiUxkm067H2ctw3osLsuuY6Hb8Xr8uy2Kce35jt3j8/r1+WY5LDVNxkXYpaNmzkLlmrvlsOIRtMkMDEtxY/QBJRkT6ioxvlwUg1yUSWSOVnTfi4O6btzXbtvy894Yoo8p8KNpEQ/UtWcx2EeSMFPNkLzAouS3+tzwV8lcjhrLXgny9+aOt/4UgiimuSyVo2fHotB2irmON2pKlQurflljh8EEJzo/r7hNKhVkDBIyjLxKoLQLxJXpmJJUceRP8ATqH0TGmy+jNtwcnDOPlP+Yy86HIjAm/MzzPyaZCCQ6RLGikm+AXoA9bbn+nSwzz7v3/2QJzDj9D0/CRtwSkcmY2TIXZkX/1UyRYWFmA45VF49A9IZ8axY8Kj9UkjOxI88UA893XKrv8A01XX4l5y5Ee3wqAAs87ACugkca9ftbn4/r51tY9NGql0dGjR0aNHRo0dGjR0aNNt3l1Nt97Rd0tGRokfcu3O8aqjzBjEj7Dq+VxKPKFVmMaPbV38VLcKSoLcDpSE1NCfiVCf3phpfGl+hk484u4Z4pRRo/2bq3R9j1515Y/fHst3C0vP5XEZjEwSS4u3LUkkoZCpbikau30zLCVdJXjcr5KGiWQAgNGp5AkWbjsjOpVTVjrjR5EH9jRrsUKHWul9oy3McbuxCsvJQSTfV90Sboi+/wCPjUS8jBkKTPDaoW4gfKMiSvJ48eweT9NkYH9QHJ+x+/HPTDLgqw/RxPmqPfgUD+3x/lWrCwN/mxkCGWOWMggoXFkEAMLsk9dG+z3590ObPvDYrS3PoWzjZoJaq5WqLEtaao0bVmpX2UZOs9YpGsQhtmCMKInrTQfUhdyxcrcYmj58cpOgqyqC4ANJxmADKRXXIkEVa1Wq19S+lvw63XHyWx3HpjKhZo3ysQytju4cLIr4UrPHOod1WVsYxvGx6de9KMu71rE8NiaCUS1rFW7HNUp6I0v16do3YS1ibS4Lska2WJlS1PZaxEfoWzPDxEXZd0RipfGnR+YpVjx3HMN0ATErEFiOjxJPRseKozvw0yYVY4nqLZ8nHSFpPrfVyo2EKrzLPGRLxKA292yGgxU1pXyncm1na+OqTUcbO2Of61C7mcfr96zUkMCVPOrXx2vYPFmVYIoo0tZWpl7cXgDHIkvE/S+RvMzoI4ccAqWBeVYpHSgCFWOONUviBRYMB2a5d6w2b8NtphyEl3ne1mSWETDHwzNBHNGXVFMmZk/pUuQvCMJIxoWLOl7FSZPPSpdtSWMi0MEddJXjQRwwQmSSOvDHXihr14Y3mlkSCtFFEkksrrGrSMWaJnych1acvI6rxXkoXivZ4gAAKOya896t/ZcDZdkxnh2WDHgx8iQTO8EjzGaVF+l9SSV2dmdQpQliCpBBAOng1YOliFSpXxZQF9+I4Psnn0CPtz64/wA++lIoiePgG1Jr4sdn9+x/Xo/tluGWwjYrdG6oAdAdEXdfNf0PnW7b/py9WmqdmfkBuMtaRYc5vem6/TsyRuEkGu69kshciglZQkipJsVX6ojLeDhVfhgR1q7xS/lEB8Rux/8AUwX+P7hr/T5pH1dlnIysdTf9mspNnzyZQD8jpCPj41sfdMuoho6NGjo0aOjRo6NGjo0a/Eiq6MjjlXBRh/VXBQg/24Y9Hjxo15ynz3w64LvT3IxJTwOO3DY6PieP0/lcvbiHrgEAKnA/p9uP3M1y3B4sfDxo4odW6qx7PtyNn4HfvrojY5PrbdhP55wRsD4P6Koj56rx2T1Xd1YZt2+tKAQyhgfHngD/AD9x9uPsDz/f79aJIAJPgC9O7EgHwP5/9vc6wC7j6FpnexUrzFvuZI1J544PPI4JAHPPHJ4+/P29UmrBPf8Alf8AiP8AX/IaaJ8TFndpJseOSQtZajZYWAxAIBIuwasedJQweHjcvHjqisysp4hQchuQf8eifFgB4j+Rl569smrN9g+B5AoeAP5rwT5vWkm24MTu6YyIZEkicguAVmv6ikcq+4knxYNcaIGlGricWPBfyFQhSfHmCPn2xf23iPL2W9liQDwPXrr3k3IsDTH3AA9q9h8AAfFeL71kNvwmihx2x0eGGxEjl34hnaRiSzEsS7sxLEmz8dacnCeFdY4oVCRrz4qq+K88+X7f5/v/AHAB5GJJJJJsmr8V10OhQ6HX8AacYIUgRYoEEcaXxQWVHIlmPZJtmJLEkkkkk3qRfbFFs7DTjlpVXp+EZkeWvDIZ55ZeEjAZGJSGNC788lnZAfSgFaEEkAEUW82fPX/86o3++vZrCmwG68UCD37g0P8AY1v9fhL4ODEfDzVpoK6Vky2x7BeWKKNYYwsTVKKlY0VEHl+WYkqPbcknnnpq31i2ZEvsmNGOx7lnbr29/Pv+/kUd6lk57vkgCghCV+4HdCyAPitWZdM2mHR0aNHRo0dGjR0aNHRo0H7H9v7/ANP7/wDHRo1oq/jadpcDo3yw7kf9M3xXGflx+2WcLknWEpd2SjBlb7Yq4QlearJfnsvHTmaKzW8vpI1iNVYSqNnn27ElYjk0ToK6DCJjEpBPuVVSbsk+PjV1eitwGRtcEMpAkxi0YIBJZFbjGWB9wOrBIIBJArvXk2ATVp5ksRPEQ/B8lPH8zewRyCPt9ift9wPXWuTShQCAKBv5Pgd9+xI+b68ams3IpYIY+RxAN1XQ/c/786wiadfIhWBJPP35AJIP+efZ/wCPXH2HXqMB1Xk2TdeB/sf7OtBgwJJvqyRXZ/2f89Ic00zuOCyPGxUcA+LKfYK/1YcDkHnj7c8cdKgg+CD/AB3rDrlVivJuiCf+h0vwzeKICQW4UE8gAngc8An7E8njn+o+/XlgeSB/J1igBJvs3Y/Yf9fbs+dZXi7A+pGzS+T+R/Sp5BP7AKPZ/v6PPr9ujkPkf4620F+FIPV3/X51MDsdiJcvsGKins18XXezCrWrZYufJwPGvTj5tWpCTwiIqqWIDyxhvIbGMvNlRa7cH3NliLoDyTRvsf0861M/IjxoGeRhQBPHl56vs9geB8k90PfXpE/FHtvhu0/x27Q6Tg2sy1MfpGEvTWbgjFu3kc5TizeStWBF/tq8ly/KEiQssEKRwq7iPzaOZ8rTZk7t7SMii7pIyUUX7mhZPuSdUBuGQ2Xm5WQwAMkzkAeAoYhRZ7NKBZ9z3Q8akL1p609HRo0dGjR0aNHRo0dGjR0aNaZn+o91zB6/380PZIL1itlNw7YYm1lKt1WNG1Pi81lcBSmx86ITHK1avWhtQzKYjIkcomjaR0MjwHLbcFLqfpZDoiVRVWCOexZNsxoUBerK9EZcccEscorjOQj3Q4sgYh/gh2tW6ADEEdqdapeZyMqzSp5soLMOA/kvPJABAYqfXvyH2HB599eOQGr9wevPtRNE0fi6+fBs2ZychWQniR5BtCDRHfhh/B1hNq0X5ZlHI9+fABB/p5D7A++T/f7j79AVTQ5EE+3ZN37URX8aQeaVQWMi8R23JL9/IoXxFj5+brrXXRwT7DDkj2D5cge+Rz+3s+x+3vrNFok2T5Hx8f6Hr99YDIl6sIRfZAIP89kdePFj4vzrtwzKSAfY/YEg8H/BHHIP7n9/36CgPzdfPk/vf/61400392u/gCwfkfz/AF78deMtxttkKMrmMEgA+fgP7clQoB/xwffXtKAOQHQ7JA/1/wCvzrEZEhoHyf73ZPwP576761Of4lYpNp7q6Hg7V00KuZ2vXMTPcji/NXI48pl6dBpalQHzs2VE5/LxuY4nmCKz8EjraxTxYurKvAM4J/TaBmo+Ouuz49/30y7zOiYsvJg54M30vH6Qf71/atr7/uB3WvTxweJq4DC4nBUi5pYXGUMTUMrB5TVxtSGlXMrBVDSGKBDIQqgvzwAOoizF3d2/U7s5roWxJNCzQ/rqkSSxLHySSf5JvSr1jrzR0aNHRo0dGjR0aNHRo0dGjUGvnL+Hv8efn/oNDT+9OJy9HN621yzo3cXTr8eI3bTbt1YzY/IW569zHZTFW5a9aTIYDOUL+LtNAkyR1bix3I14ciWCwjfaxBZDfFiLAPRBBFmiCDrfwdyytukL47AqxX6kTi0cKerogqRZAZSrd+SPtOpl8i/9MX8utPuW73YLuZ2m7+awk8wx+J2i5f7N9xFgklaVY7Itw7Jo9+ZQxRrMewYmOeQKRRhjJYKTZTyfcpKPQsECRCQOvJV1F+wNfN+NWRs/r/b4Y/pbjhSqtgcoZC1J3/eoWQD/AHoj7CyPFXO8/gv/AImGj2rFfLfDLvldWLkLb0G9oXcmjMFZRzXGpbhk7Lof1Mglo1pTx+qJfIdacuTuAW4fyshs/a7TxnxY7pgO6vz/AASK1OML1f6ByyBlZGbArAdyLCOJsWvYibwSQx6BHZHuzsn4Y/4g8E4if4ZfMhHPIVH7BbdIS3JB4lgiaFxx6Uxnhv2Po8opuG9KKfGxSPmPMcH37poL+PPRo1ZI09PvP4ZsAYt9kU8P0yxwkdCzfDJUGiD48mq+dZxqX4RP4k21268FD4afJSLzkjB/6n0yhosJVmHIltbhn9frwDjnlpJ1CeyzD7jaXPz2NPDEoqifzMhIP/piB/YUeh37aapvUPoTHJZN3WerKBcfl7HyqTSdjwPPfd13q0/sH/p5fnHtdGZt50PtR2csWbleWvf7n7/R22/XxrxMltjge3Me2s1uJv1V6k2YqRWZWeN79SILKd6LOZY35hfqWv01CtKAKpuTyt0b8ARkaiG5et/TqEJhR5+WF+pbAjFTkT9lrxRmBFFvvodqOdAnYL/D9/Az7B/DTYcF3R3va8n377x4CWO/r+Vy+Hraz2+0rKIAYshq2kQWslNby+PcuuNzu0ZjLz0iI7mNo4y6iThGXMmdDGp4IwKtXlgTZBPsvyBV930SNV7uvqTK3JWhjjXExzYZEYvJItnp5CFpT0SiKvfTMwrV5HWpqOa4YkAkcE/sCeByfQ5IB4HP3PB4Hvg8cdB/x0fz49/41CJflNv+Gk2qpsvY3cr1nG5DMLgbWtYzILhreMrZGPHYmW7byiHJySXBdx2VtzUcOWr4X+L3YcdPJjIK+Six3/Mh/MLPtOUzRySrE0MbiJo1kEcbM0g5nlySR2SMhYRK6qzR/Tfos/gt6Y3BNkn2j8SfT2NDmYm3tucO8ZuJ/wBoY+ZNhtl58eLBhuMPjjflsvDhTJ3BRNntgY8mTGM2WTCdvtJ8htb7q1sKtPCbPjchlpdjqOs2AzE2HpXNSsDG5uC5sIox4mpKMzBk8bRp2bKX7M+Lto9aKVDGHHbt5h3FYuEORG8hnU3DIYkbHPGUPPxEan6gZFUtyZkIoMCBBPXP4W7r6Il3E5O57LmYuDHtE6GPdcBNwysffYjl7dJi7Scls/IjOBJiZeTkRQHFhjy4WEro3PX/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAICAwEAAAAAAAAAAAAAAAQGAwcCBQgB/8QAOBAAAQMCBAQFAAkCBwAAAAAAAQACAwQRBRIhMQYTIkEHUWFxkQgUMjNCgaGx0VLhI2KSssHw8f/EABsBAAICAwEAAAAAAAAAAAAAAAAFBAYBAwcC/8QALxEAAgEDAwEGBQQDAAAAAAAAAAECAwQRBRIhMRMUQVFhkSIjgbHRBjJx4aHB8P/aAAwDAQACEQMRAD8A9UoiIAIuMsjYo3PebNaLkqu13EEhDhRQggfjf/Ci3N7Rtl8x8+XVm2lRnVeIosiKjPxjFLjNVxsv2DApNLj9fE+07Yqhnm3pKXR1+1bxJNfT8Nv/AASZafVSymmXBQ8SrI6SG79SRoFgpMZpamJzg/I9ouWO0cP5VYxjEDUykl2mwHkFG1rXKdta7reSlKXQ829pKdTbJYwdlguKmGcU9QQYnu6H/wBJPY+itC1qHtdE5pN9NFeOHqs1eGRukN5GdDr9yFr/AE5qbuaapT8Fx9Oq/BuvrZQ+ZE7JERWgWhERABERABERAHxwBBB1CpfENI+nqzl6YXagBXVRcSpG1dM5hAzbt90m1zT3fWso03iS5X4+pJta/Yzz4GvQwmTTsFCdilNT1ZhdJlc0au7eym4rmpmvY4lj9R6hVSlpW1E0rtQwaXC5bb0VJOVXKx9y1UKcakXKXQs1RidI6midBOHzG+ctGluygsqeY49YPsV1UrIoXCGLU7anZYnU7+c4A2A1uNFOqRhUW58f9/s307aEVw/cs0MgBFhb1urbwW/NFVj8OcEfmP7LWprJ6dgLQJPME6/kVaOF+J6Wio5GmOR9Q99zGTawA8+6ZaDWha1lVqyxHn7NfgX6ha1JUmoLOTZCKLhlbHiFFFUw3yyC9juPRSl0mE41IqcXlMq0ouLw+oREXowEREAEREAFgramOkppJpTZrRf39FmdfKctr20utb8RVFc2aX64JDY2sBp/4oGpXjs7eVSMcvwJNpb94qKGcHUY9WPrqqRzj1yHXyCiQzMpaWRgaPQ+qxNfmDy82dfb0WCd3QG33K5e81JOM+cvL9WXOFNKKguiMmGMe/MSAHH8RUmojfA+9w4OF/7LDRy5JgOxFlMqiHxH0WurJ9phrhmZNqZ1dbdwD2XFtViaedGHah42I7FS5LZD7KNTZYm9R731UhfDDEUbk+DYvhlW82hqaaV4E0cmbJ6Ebj81dlq/gGOQcTNdy3tZynakWuNFtBdD0KcpWcVJYxwU3VIRjcycfHkIiJwLgiIgAiIgAVSvEGEsZT1UTnMfmMbiDuNxcd+6uqr3HVMJeHp5PxRFsg+bfsSl2rUnVtJqPVLPtyS7Gey4g/X7msjUvIIlbG8+bm/wocsud/3TQ0dxosj3ArC7/tlztVJS/dyXaMEvAyMIuNBf3XMyu20sogcQTb3C5Evt7HT4Q6abM/yjMSXO7C53Sx11AHpojdgSNwvrvsaBY5jwgTyX7wvhH1StnLet0oYHd7Afyryqx4d07YeGYHtGsrnSH5srOuj6XT7O0px9M+/JSdQnvuZv1+3AREU8hhERABERABddxFGJcCr2EF14XaD2XYrHVMEtNLGdnMI/ReKkd8HHzR6hLbJS8jQMjiBoVArMXpKN+WrqGRutexvsuE1eGNe1wJey4LfMhajxmslrMQmfIbkvJyja/fRUSy0/tm1PhIueo3/dIR2LLZsp3GWEtfk50mb/ACx3v8FSqXizCZnZTUGM7f4jMqoFZUSBsMmB1Ba5wvJTwgxlh8g2+o9dVxx+uNQyLmQQfWXxtE8zWAdYN7NO5IFgdbbqa9LovCWff+ha9WrJNvHHp/Zt2jqoauLmU8jZGXtmb5rPK/oJHktacA1skOIR04JcyXpN+wt2WxKp+WFx9Ck13a93q7E8obWN0runvxhm5eCmZOFsNB35V/kkru11/D0fKwLD2eUDP9oK7BdFoR20ox8kil15bqkpebYREW01BERABERABDsiHZAHlLi5ktNjWNU8TnMkZNMGFu/2jb/hU98VK195ueAXD7yPVw6Lkaer/hX/AMUmfVOPcVbawMoePzaD/KrlSyGpgAqo+Y0fsVWt3YzlHHGS21bbvdGE08NJfwVeWaVtM10UTXza5hynG21rHvfXyUgsidNIXDPqQ1xicTYN01Prp6KeMDpaghkVVJC0nK1r4Qdz2NvNdnh2B0LOW+tmlqGNJAbyw2xFhY217oqXFNLPPsLYWNdvDS9+Dhh1M8uZLh7qhhDgGvER6ex1AtfU+lleqtwbE1hN72bcnfsuNCyGClYymZki3A1X2ZvMqaRmnXK0D/UEjqVnc1YrHQe2tqrSDect+x6CoWcqigj/AKI2t+AFnXxuy+roCWEUdvIREWQCIiACIiACIiAPM30gAaXj1z2ggTU0T7+vUD+wVKwiuB0eeoLbv0oKO2GYNiDYcxZK+B8gH2QRcAn3C88irLLWJHskl3QzNotmm1t1CPpwbJhqm2Gt1LgrmhxaCFrmmxuSGQCQ5mHe/ZdlT43CyRpL9Sbm5SupZMaxqo2KKkFnmfdcsIcazivBqZrSc1Uz4Bvf9FQ38RGRvLiJudjsr94JRzV3iFHM5wcaemklffsCMot+bli0sWqsW/M0XldQoSkvI9Gt2X1EVwKKEREAEREAEREAEREAVTxI4VZxnwxNhYqBBLnbLFJa4DhsHDyK8w474UcW4PLIJcMnniB6ZKQc5rh7Dq+QERR61KMvi8SdZ3U6T2Loym1+B4tSuLZqOqYR2fA9p/ULBT4Vis7wIaOqkPkyF7j+gRFDUR+qrxkt3Dvhzxli87RTYLWRRk/e1LOQ0Dz67H4BXovwm8NG8GyVGIV1SKnFahnLdkvkiZcHKL6k3A1PlsiKZSoxi93iJLy+q1M0+iNkoiKQLQo9c+oZTl1HGySUEdLja476oiGZi8PJhoqqrllcypoXQBp+1zA4HTsiIsIzNpvhYP/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAEDBQEBAAAAAAAAAAAAAAkGBwgCAwQFCgEL/8QANhAAAQQCAgIBAwIGAAMJAAAAAQIDBAUGEQASByETCCIxFEEJFSMyQnEWUYEKM2FicpGxwdH/xAAeAQEAAQQDAQEAAAAAAAAAAAAABgUHCAkBAwQCCv/EADoRAAIBAwMDAwIEBAQFBQAAAAECAwQFEQASIQYTMQciQQgUIzJRYRVCUnEWJIHBMzSCsdEJQ1ORof/aAAwDAQACEQMRAD8A9/HGmnGmnGmnGmnGmnGmnGmuK9Nix/bz7aN7/wAgfYGyCBsg62f9D/W+iSpgiO2SaGMnwJJUQnjPAJyTyOMZ5GM519BHPhWP9lJ/7DW60+y+gOMuIcQd6UlQI9HX/T3/AM+fccscih0dXU/zKwK8eeQTj/XB/bXBBBwQQf0IIP6+Dz4Gt3nZrjTjTTjTTjTTjTTjTTjTTjTTjTTjTXzYH5I/9+cZGcZGc4xkZyBkj++OcfpzpriSJrUZDi1qGmwSpWx1SR/iTvfceiU6Ho/nf58lZXQUUTTSsNqqW8gZx4G4kAEkgDP6j9RrsiieZwiDJJA8Hz+p/QAAknHgefnVDv51FMxqI00XezzbbikHQQlSwhRUSST1BCtpA/ce9jluJPUine5U9BBRO6PPFHNMCCqxu6qzAkg8bhuG0eCAxOBqRp0zUGmkqHlUEI5SPGclULANjkBiCuc8ErnOTmmM7LsC2RJQ+tLD8ZtwBAISnS1IWdAft1CjvX5/f1zo6wgjguf3LSOsc8cUilS21dv4RIUZxyDgjHtIyW8j22FzNSdntpujd0bcq5LHBAyck5HAxjwcfOqXrL+Qy6uVCkulYWULUk7SehSVBTZJSr8pUoKSR1PU6BA5RaK4TUxNRRVEqOrtkISysV4KzKzgOGyCykY92RtPj3VFFHMBDUpGy7QIyxA2nBwUIQgbeQrckYzgnI1eHHctiW5ZiOgRrFaVq/TkqUh1LQHdxhzQBJALimV9XEJ7H70p7cuhZb/DchFA69itMZdoDlgypgSNHIQofG5GIYIyqxVFkC51Ea+1TUJZ1ImplZR3hwV3nCLIhJOS3tDqzLgBmwSVFZckmqXpxppxppxppxppxppxppxprpry8g0EJU2ashIUENNI6l59w+/jZSogKUE7WokgJQCon8A066XOmtVJJVVDgBTtjjBHclkOMRopPkg5LHCqPcxC69NJSTVs608CbnYFifCoqlQXdjwFBZR5yScDPOKKkZ5GcuYcJQ/RQCht5yW7JYQ8pT7XZloxerjgjfJtLzu0LV1CmiEgnkQn60oTcqelaSOlo3jEsk888UU8hkUrEhp8M60+87WkYL3GBMbdtjtqwsNSKWaYq80okMawRxOyBY3IkbvDC9w8FVXKhT7yGwD0uYzrFRbfjPahfCt5IZIUh3SVKB3oEk6PUfkkgaB5E+qpq6pqUc1DfaFI5o1hfesgCk7wnBJbA2p8MQrMAQRWbNDSxRyK0QacHDdwEMu44wx/lPBBYD2nDYJwuo2PpF+uPxd9XsbyxV4UqVU574iz3JMFzLFbZpcSzhv1d7Y0MS5jIUoh2tnTIK2HnEKUYU1P6d8NqdbSbeW5qqSgqnuFDFRXOCSUulPOZoZY2kl+2rIpWVX2SqoMkTEGOVWGSrLmdXGljoqqiamqjV0U8ULpK0RhdJCi96mmQ/hhonJCMpbfGylsFSDlT5Y811Vj9NNf5nwdcC3euMFayDDVWxlQq6WqygpfrX7p1DTkquq/mShybJXGccjshZ+J1W0KnXUlzWusdnqoGQVf20UbDd3m2vJAZMhAXkCAPJGAAJGXYSoG4xWyULUd9uNJVBxBFPKJFQBSzKXIQFgcEg4yM43En4IsT9KGZ3E7wjik3M5LTmXdJqcldZsEzor10+U2VnMjy1hJeq5M6a8upW6hlX6BLKS02hsNohVuqY7Ja4IauZmmWSdpJ5DtWUs4kMzEkhQ7ux2bjtYbc7QuJbdYDdblNLSQ9umMcAiiVN5X8MJ2owgG4IqqNwwG9xwGZicgT5oosSuWXnKm4vpbLRVDbrnIUeG0t5K463JU+YtpDnoKR0jJIV27klBQFU9/Wfp/pq5oRa7tf6uJZBCttNNHRQysDFIJa6pkRJmRXaPZT9wEtKxyY1Oun/AF0u1LtFXQWyGTaZWqy5mIX3xduCIMV3clmkIXGcEtkayixfPabJKiDZF5iFIlRm5EiAZbEtyEpwqHxOuxFONq66G3PtR9wG+wI5kd051dbuorXR3CJ46eWelWoqKJ54Z56Ik4eOdqZpEXtn2s5wgPzwdWmvFnqbPXVNHKHlSCdoY6rsyRQ1AChleLuAHDKdwVjuxzjBGqyYlRpKe0d9p4fuW1pXr/ANQBJST+wIBI9j1yTpPDKu6OVHXzuRlYYxkHIJ8jkfqORkc6pJG04PB/T/TPx+3zrf52+dNONNONNONNONNONNWZ8pVC3FwLZyTPVDQ8xFejsALajLKituSlsrbQoLUAl5txSEuFLYStKv7rXeoVEV+zuElRWilaSOjnSIpJDT7g7RziFijPJO/4MidxRII4QWXzqW9LVGXqqVIqYTiIzxSSBg82OGgZwfaIx74mCMA0khcMBt1S7FAgynJ70xiy+RTT3f8ARqYW2Oo6NBtLbrR6JA7JTJATo7PsHkBNihaolrpblBcY6h452VqftdrgCOApmVSYFUr21qSsZyBkNk137+QQLTx08lHsZkP4ocSnYFM25pIiWkK8M0BVwcEDG3Xc2LTbzL7BfmFlxCQFERGVhz8rUwGVuutNgAgIUC4oISSrRJNSrYItkq0tRVMjLGo3y00TGbO6UxLFI7xKE3jtAGRlV2diRz46aSVHjd44u4rlgAJ5MKSRtc7VDlsby3gFwoACjGOdV40xzG7+a9TVFXRw5M2dZOKo6SsqH51lYLS+8/Yz4MGO9YCRJDkuaXluPPy3P1D7odKlKhXfnkqGoqih2Ig/Bq4HLSCbKqgKFSGRmJZ1V0LO2cxLk6lA96RzpUNJK2BJAyO0axgncy+4ncvtVDgE4CnW7cUWK1mGDE2oFexj8SE1Vw8eiIDNZDq44KG4jbMbaGIbSf6bEaMNJ9K2lI2rzy10drp2R5FkkLrGiNIrCEISql9jNiPI2BI3Vy0hIkQKc+yKnmr5y2JB3EZ5JijCWV5GLblDgAFzu3SkMFCgbX8pYuzqk0lbFpccTCi1z7iXzGMV6Gfag2I7yWUtKeS22lLSHVdS8nRcJV6NnfUqvvl8hpKCglpqankQhwpaEbd4SdZCHVpFmG1E2MjDaDI2Pbq4fSNLQ0H3M9Qk81Tnf3GCygKAArgttCsgZiV2khiWUY12Tsh6RTSG5cb9VOrkw1RFw3YTUNbbQSh5Lv6mS0orbbWtLaEsrSXSo9kJAPKFHSzRWOaCeJ6istn2ghdJ6aGCUIqxusoeSND2o9yhVQKrjcgYKjtUj2/4hHLAzR09T31kjaKZ2UvLlGUpG45Kgk/yJlB5YH415YmYhCaYoYT8GY273ckxnm0SJDbiCh9l/TLkaS084UK6OPFA6IIBUNHqf1Urel6KKKzu9pq4JRJJWQyQyzyxGNo5o5VEbQzAsRJsczI+BtTcNfE/RMF7nke4BKqGRFVKeQOkSOv/AA5EdSrQlAWDYVSQSARkEZVfTjl2SeQ/5pd2UddfW1b4itF1lRk2UmSytxwKkD4GQxGSEurYRGUpK5Den0slKF5NfT11xfvUNLvcaxJ4rZapKWFKmaMM9yralKh5qcTKkEKR0cawyyQR05KPPFiULsWWyHqf0zbelaqio6d4nq6tGkaOFj26WniChAFZpZHMzb1Eskq7u24WIEFtZa8yjAIGCcnn/v8A+NWq05zppxppxppxppxpqkc5gqmYvcJaIS61GMtJO/f6RSH1AaPpamm1oQR/kpPb7d8inW1Ca/pi7Ro2146f7se0vv8As275TaOTvRXjx87sEEeKxYJlp7zQSMpZWnEDAf01AMILfOxGdXbHO1Tgg86s5T20MVTBW8lLwQor+9e1K2R1+Q7Qsp9BWh6PpXsb5YmiudFFb40eTszIJAwLOrPl8DZn2silQm5QCAqrnHif1dvqPunKRs8ZwwZlDFVYbz7fzKOSRnO3IHk6pm4vhFfWUrHyrUVlO1AjYG9H1vY/cE9Na/KjyEXvqdqWqZEmO44Zsl1IR8lVDYG5MedjMoxhse0Gt2+0CqjUNESgGC20Ngrjn3Z92M/2XOqGs7FuY2pCnHEqc+/sy+poj+77toBOuugDo7GupGt8iFyvcdTE4acrIDuLRS9vAGfy4BIJU4zgcH4OCJHS24xOm1EZQVCiWIPzngkNgAZGSo4+DxxqgpeTVFNEcjlPREcqV1Li1uKdAJKnFrCnHXVnRUpxa3FK+4q2QDDan1FtVmpHgcACmLkq8jZkmOWBYYYtI7bT3GO5tp3EquNSKHpuqrponBG2TAGxAqoM8hQOAAQMKBjn9gNWUvshgWzrsgR46Pk6gE/2KSnWgUlPTQ/HsEj7tnfvlo7517T3Z56mJYU72wDdJJkKqrlgMKpDYCtxzgqOckz+3WKShiSF5ZiELEDjP7sNvAJOCPgHBx510LeQyNGO44220fSA17SOpOhr9tJAOkp0n9vWuReb1CqlHZkq1RCAFWJlIzk8c+47jwQoyM5HPC1T+Cxs3c7LM5GWbblvcfcxY/rj5PHkjB53AGZJJQsvOq376qWdEEghWtNhP5JV2AGzrf4oE9/WtkMLSrPLKmP+GzBSPkMfye3O4kYXJYDjOvYKYwKCU7S8cZUZ8Y4UZbd+VfkscfvqTj6csfeo/GVU4/oLuJc+3CQrsUNPrbjMJUfW1KbiJcPr18gSSdc2o/S5YZ7N6S2epqSvcvtbcL1GoADRUlS6QUqORyXaKkWV1ztzIgIDxHWGHqzckuXW9wMQxHQwwUGTglpIo1eQgj+UPLIvPIZSRjcdX65kXq3GnGmnGmnGmnGmnGmuNNjolxJMVe+khhxlejo9XUFCtHR/Yn9j/rnnq4FqqWppnLBKiCWFypwwWWNkJUnI3AE7dwK5wGBXI19JI0MkcqctFJHIoPgsjhgD+xIAP7ajurb2ZTyLSre+eaYFrZMpV8raFI+OUtgpLICUgf0R/kSVKJ9+ta2f8U11prrrbK2OWrNBcK+lVxIFwUqniZjHyI93ZLsisVV8qo2gBcr5LVTV9NRXCIrEtZQUMx/DLbi8CuRuyc53+doATGD4z9yDMAuInokIeCQtKJLfYJ2NBQSvQWCVJ0O3Uq0retnlA6r66hajiMcJWYBWKyxFsJ7huIc878hlY5WTAZSQM677Z0+UqGAclGcKdjqDgEA+DkHyCSM8kYGrTSsrs0lZL6fk+7TiD8f3e+pUg7bIGhtJHU/sNb1ZOq60uau5NRiRlPvQEe4jALKwKe3+llZWHtIAA1OorFSbVxHwH5jYuwwDhiHUg5HG0DHPnkatnd5NPkqfZlOBTrgUe6EpCXND0NaHVR0T22ANHaiQCq3926nrapp0qZRJNMeHCxLvYhcYAUhR52ngDBztJ1JqK0wQbHjQ7VGF3MQFxnPOAeRyDgYxgZxqgETu/dUlxxSG1f00q030/O/WyFDZI3+DoEA63yFS3MRLtnLGJA4KEAYIJLbCGI5OSwBzkngc6ryQLw0anDAHySfOAGzzk/p8j48672imRXXD3YS6ACQpQbHYa0CSs6HrYB2NjWvwN0qku0LzNKwjdAGKsWjUqNxDMJGLDPlfcPgg68FWsocoHZfeFwO5gAgHGAuMAjn45/vit4NzVLtYtM1JjMuTHkoceQNqBfWEpBf9gtlSgPjSCP8ABI+7Yqtu6ztct7obDTVdNE1VVCGapRQ7BnlRUjeZg45OMRggsu7thR7l8dZQVsVvqbi0MjrTRNKiFiCTGhclUGTuVQTuH5cA841MVitexVY3R10VxDzEOsiMtvN66PBLKdvJA9AOqJc1+xVrZ5+gno2001h6U6ds9HIs1NQWegginTGycCnjZp1wze2Z2aVcsxIcZJOTrXpdax7hc6+tkXa9TVzylPIQNI21ATyQi4UE8kAE67/kl1T9ONNONNONNONNONNaVjaSP/FJ/f8AZQIHr37I9j9x65wcHGTgbl5/6hwf1B8EfIJBBzjXDHAJHkcj+/x5486iyymSa3O8+hpcKFR8jtnCg7V9sic/LRsqBI0l8EDWwD9ugean+u1+x6767o0dk7PUV3Kq7dw7ZKx50JAywwJ/j4OQQDrNTp1fuulemJWUMHtdLGH3EECGFYDxgg5EYXPPI5xq1OQZqIIJWPt+5G1b0QSN9SN9SCkEb0NnWtDXLFdQ9Q1FECWjPbYFMMzEbifCBgNrFht3HxwT86mlvtCygFWYHPAUAEZyVLBcEkjxwSTtA86tJmPkKBXMqVZSI1C2lhUlT13IZp1qYDaXXFxmLAx5c8IaKXC3Wx5kgtELbYUhSSqg0XTHqF1zUij6T6I6husjKzd7+GVNJSqCFbuNWXCKlpVQody7pGZlIKRn58l9616B6EpGrerusunrLToTn766U3cYgYYR01O1RVSNuBUmOIoHyO5wdY5ufVN4JjOtR3/O/ihpSXVpffkZNLaMYA6LchD9O3LbdSslDzJjfI0QBo+gZkv0r+v0tOZf8O2SKQIe3BUdS0iVBdwrJGV7TjcQTlC6hSOW9wzaZ/rH+m5KowR9eJMuCGlittUKUFCQQXk7bsAf6Y2fn8p4IuJQ5/j2bsNSMOvqfL2JexEVjk1E+VMaCwgyo9MtEfIm4KyoJRNk08eK4shLbilnRs5136WesPRcRj6n6Fv1NE6PtrbdSSXmgmQf/HU21akqzHwJkgZlOfzEqLzdFeq3pZ12gl6X646fuTMpY0r3CKjq4+D7npq5oJmK4AIgWbn8pbyKslTkxUKbjV0+JIYSlqSCh5CUPpSPkQtLn3NrSont8iUuDelgH7RYW71CxsIaemq6BoFWKoWcyxMJQu1hJGyhonEgbdG4SRGyjqGB1c6kpe6yyPUU1QsxLwsoTLRsxIZSmQ67WBWQHtugRwWVsmvfFlJbS8iqbZUJMmI5dUsF4LIcbQbKxYhsJWFAq7lThLXsFK9df7QoSL0ost0r+sunaykpBW0LdR2G21U9QiSYN2utLRq8ikqVZ2kJSNgDwWX5zQOurlQUlkuVDJUdmpNruVVEiZVnFFQyzOVxwRgKHBJDBjk441O2yAlpCUjQQkIA9f4fb+3r9ufp6iXZGiedihM+c7Btzk+c4znWsYHOT+pYn++45z++c5/fxxrc59650400400400400401pUNpP+v/AI984OMc+OM//fx+h/Q/HnTBPAwCeASMgH4OPnB51FD5paVW+ZvI7SSptt2XBloOidJk09c4vQGj/wB4p0ghX2j31365qp9cYzb/AFd68QDZ36qmq15/OKi20TMxwRnuy90MP6QRySCM0vTc/c9A9MkHJiSpgI84KV1Soz4/KgQYzzu/bWB/1P8Alml8LeNrDMbWZERMCzFoor6VuOzbRwIK5aGNrSpmmYc/WuKkpehSbJVRRKZl2N9W182i+jHpTT+qHWCfx2gWv6QsMc9XfozUTwCaepgqYbbRRmBxNI7Ve6SSEsYzTUzpMUM8G61v1S+vMfoP6YVl3tlxit/WN2kWk6XEtLTVoT7aeFrtXtDOsiBKSj3xQyFN/wB9UUiIu5wD57fGeSP/AFDee66m8tW2UW2P5pZX9uvG6bKayjhpyZ+tl2lc0mRlOS4tUQKRV0mRa5E3CyLHpaoTlkaOZWhDIY2gRQUsKxUccXap440jihiMUSxrDGqwoHdo44440RVc91MoCA+BrQV0x1JP6kddQ0/VtbcaulustbWTUUFeIUevlSSqVRJUVdNFHC9YS9R2p4Z2iWVKNoo22LkPiGWW30+fVpD+m/MPph8UeSIVjesYbO8cMeHvDdbkWQt5dCis1dtA8w5HRedMkyWgh11w9fxblzM57UqK1CkDJYIMmYnyRSinr/tpKSKRXdYzGsMXckLsMyLNIJpJY1zkM7OBztwOTevp+4L0r1vH0dcOjbJcIqmT+GzW+GxWuGadayNJIaqK9VAvlXVU5ikEy1L17LKjQzz1kSZcYX/VdknhDxr5QnY19KFxm9XRYZlGd45kuXNZpkNjQeUm6nM3hi9lESpcdMVETH0yseu4NO8xj1nHjwJ9Z3clzJJ8VW0CNJFSswSNp0Zmd2jnKSHty7dwUE8q2wJnarAAjI899q+nrRfJaXo+a4U8FvrbhSVFTDVTy0lxeGqb7eSFWUoCiGSKRYlWB12GFdrO2pqfoN+rlnz14ikwchnQ3vI+HoDFnEQ0luROxxFTj9Q3dyg2lpiQ/XZTMkQLB9DRkt1txhcm2kzbK+dkK1Q/Wz6O0/SdRB6jdJ2WKls/UlXWw9UtDNNMY+p6+eqqYLg1NK7JTQVyyMhNGkcP3aMJY0E8S63B/RN6zTepFjk6L6kupqOounaWjktCCKKDv9O0Yo6R41kiCCpqKSVvxWlVpft54p0lIWRxJZ4LuZNj5M8dYvFe/oyMwp5clIPpxMJ4zSFpCgFpbTGUUgjSSSsbI9YnfThRXOr9aPS6zo00dJWdfWCqliQlUn+wqlrN8oBCydtKV3QSB1ibcQoZidZgeq9HS0/Q/V13kVTPD0/WQQEqvsNTim9rclWlE4jds+5QBgAYM6if7Rr1+fX/AFPP0rgYz/dj4x5Yn/fWsxTlQQMD45zxng5/fzrVznX1pxppxppxppxppxppweQR+umoxfqYgsw/L9xJPszaahlqB99g5HkRRoEa9GGRoEaPXf5HNZn1NUK0/q3cp8bTWWexz7zkggwVMLe3ncM0wB2/zbefOcvfRyqaboiniKlhDcLjCCADtCNDMNx8hT3yWz4A4DEAGB76/ZUHzhKHiHBqTyDZ5R4ls8kh5xZJwBaKOm/4xh4Pm1G9Wz5eXV6L2tusU8YZRkQtBGjRmqSgetWgmDEu3oWQ/wBPHQVV0l03cLi10ttypup2orpSG2IzQQxLTSlu9USspln25EgXtRQLCcoZGnYauPrq62oPV3qCm6FsvTnV1Fe/Tme6W2/yVlqQIs1yqLbdKH7UffQxyUs1PaaitiqW3GSlZZlfs07II2Jf01HxvHfuczoM5LkSTGgOomnCKaTXWMi1y6sjPx66xkOz4c1q7wLJKyPMTMWqPZQY6m/kjyok1V9qqIKm51ckuiDa0QG9y6hfdk7i0UigDgEANrB+i9NUsH+arqS6O3fgpttTFQ0siVE81dFAIV+4klhnMtrq4o3UtueNVYNHOrC5UHK6vEskyfwPEp/IEzKcNx/yjIyqmzvP8AzCDhtP49xa2yvyRjCbBVLRW1CUUlValeOY7lAqLV0u1coSIMlxD3RHIkbyQBKgvEtTuE0wl7SRDfLGW7asMRjcEjcJkkDJzq69uuNHba2bplKG5NW0FNdnqlr7hQ1b0UVto5666Ugk7cckDpFTVCGjpaowSyIact2CyjHXJvppu/KNml2PUeVnLgwKhSaFMrwrDax5N3gafImK0DeJY/EqYsW3yLCjHm4zUVMiXZZC8uFULlS8hlR4z3mNMZXJxKXk7eAft0KiSMyRRkKqDLxgiFRlmKskjltpPenTE91qY3WO794RRbaUC0BYFkoEuNNEKWERrFPPQsJokiEss+ewo7p26uH9FN1hf0q+R7JjyY/nyGfLNSziGErqfGsixuLa3lZzVwq5SMcbzCPdv1AssSyGiRfwqsU8qVKlPOKkCvrVcsX9Q3ptcvU/0wuvSdqu9DZKuaqoLotddoD9gYLXU/eSpUOjd2mhZIGJqURtpQKd0Uu1smfpc69s/or6kUPUV8t13u0FfSVdnooLfSqa96m5gUEUsEDVCmoQVCTQoeyqO7+zMkauPU19JmKsO+bMWecQ28uol2klLiSkjtHq57BKSlSkKSFupIU2taAtP9NTiClxWq76ObK9X9UPRlKaqC4w9O3K/VK1NDMZqCq/h9tudMtXBIVUvTNLIJqYsiMy+5yTnW3z1wvMjeltzbsz0n8Xp7fHLTVSxpVQfcVVJP2KhFdlWoQI8UyRs4RgwDsBnU0iR1AG96371rezv8c/QUDkA/rz/wCNa9QMAD/9/U/J/wBTzr7znXOnGmnGmnGmnGmnGmnGmo2vq/Ddd5FqZi0kmdiTXx7IT3MCwfQeu/Sin9SNgewVJ/Hrmun6uIBS9fWauKf830vGQd2zJpK6oRuTwSomUBRzyeNZV+hUhm6ZutOM/gXgHgHgT0sZ+DwGMWMkYOMHPGIl/MHhHFfJF/k11fZX5Dqq7LonjpnI6HCZ2JUf8wm+LXMpOIWEy3u8Ny2yfYitZjdRJcCEapubVSDUTHZMP7hBelvqhqPTvou3dNU3Sy3VqGSpMtVVXeWnjZZ62pqQYoIaCV0RVqmpzEZj+GgKZ3bWtr6m/RpafVz1A6h6zufXd6sEN/penIZ7PY7ZbNzS9L0s8NFNNcKhp6hzO9RNHVRpDGJaaQQYaMy9qPXy74k88y5+SGC7TeRsYtbW5buIbd55Ersmu621yu5ymVLXjlF5Jxxm4tptzeXuTyu1XXVGPSLyxjJs0M/I9Iyd6V+pP0p60qI7fRdWUlHc6lI3korz93at00gV5YYZqo0tHO6ysyqe6Iy4JiK7snA71G+kX6h+jDXXGbpMdU9NCsrFeotFfVXerlt8tfUVJrZrZaLuNs7SSS1ro9LSimkqJUadFZi+MlrDyOszGJYt4xkb09iJZ1LuRmw8wsX9bCtqpqqs6tqxH1HuxpUaziKk0tqlydGZlVqGw+04285EZu2l1tu0TR3G3PE8ZAqBdYlHbdAfzfxBlZXUliSxyGJ3HcALBjp/qaG7RE9M381May0zzC09RfdxRPGKV4iXvTGRZ42kpamB37fbRIXRo3INc1vhfztlVrFlxYQoMVgTqmyp7DLsz8swcqE6FOh2kW1pKtzzfkUVv9NJgRv5PklI7cyqmcy0mbChoR+mctx1d64emnRLRQX3q+hWsO9xS2+Wtu1WpBXl0t7VbQAtH+GZRGAUcRkvhTkJ0B9Nfrn6gkV9i6LuNNZYmgeC49RVlysamaKRJN0Aut6EcwhfakctP9wIsBXCKQq5z0/gLCMev/FWT2vlLyTkWR4BnWB5/Ph3hwK1r8kucGk5fOrYsKyfwWF5Ix3F2Z+eZVKrKWzzzI0Q3pNc9KYsF0dMYOFnWn1pVfUlD1v0xRdCSVXTtxpbzY7Z1DBeZqSsajqIKqko696Sa2y7Ze1MJZoFrA0fcEaPUSqRHsF6J+h82a4dD9TVfXVf/GbHWWK+Xi11lqttdSyXK2s9VPbYLjHLFU/ax1dRUxQyCaaLhXbtxRxrqYr6FLWLaeWWorSkuuV+I28twg+0BCq+G2Sn8J7F50BO+wA/OvzaD/0+bBVQev8AFPNAzRUnR/Uk/eJYRhy9BS020EIN3bmcbtmAAUGSGOr8fUuOx0LCA4QVF7oI0jJBZlWOqllPDH+ZFDMNwxtAJDA6mI5vR8awK0400400400400400400401GT9f3zw73xfYNkhp6vymvUQNn5f1FZLR/shLatDStfsk6PNfX1t08qXD0+r1zskpr9b/239yjqlJxzlVRgM8e7A+c5SfTnLHJTdW0jcMklpqhggEgCpgOD+h3qW/sM5wMRyW1n8cRx15Zc7aR2Seyj6Prr631V19K0CT7PrmBldSVE9O0uC6uy8Fd6ewMZN39Kk4wSBjgc8jWTVKEE6oCFPB8cj9/0Of7nyNWydzamr0NRbCmRJZbkP8Aec05GYmPtOMSUJjNOvMSG2Fd3GesstOPsBpTrO31gpuF0D6qdH9KW2zUdx9JbN1NdLJDOlLWVQpmikeeeoaSsqKaenczSypII5vuGnDingenSArzAOr/AEg6x6ruF2qLX6pXnpq03qeGaeit0Uv3MUMcMEcdLBWQzQ/bxwPHJLC9MIZgJpUqmqdw204nyK6n4VRmSZynWVIkfqpLMeQ42864tMqpbf8A5U/Df1HalQgw0iRGL8Xu026haZLTes3QVvvtDeLf6LWe2pSm8PdKWK81UlPcEuNvFOn+UmEtBA1LUKa9AtN2UcLFHGhYsPA/ol6j1ljuNnuHrberhJKLMbVXSWeCmnts1puf3kkklTTNDWz/AH9Mooph9wWmi2iVsK++qI1Gu4hxHXKCue/TISFSj0j2DwVKWuSlaoQZT2dgCMyw6408+w9HUtJUhZCoBP8AUD6cTWZbFePSW03S40dBU2+mvDVf2k8Uchq/tpniooYI53pzLSjvurTkUgmjdmlYCsy+mHXNB1DUXO0+rl3tlurrnTXGvshoXraSpmj+zFWqT1s9RLS09SkVTtpoDFTIaySMRII9zW7yDF5Va46QSsoDxbWHC6oLaVoodd7ElxvoptY9dVApWOwUOWRtl7hq0AZBEHcYiKJHiORpWjPaAC/8MoPYNpA9pIKsb/QSJKAwbcwA3c+0sMgsvnG5gX2ABVJ4IznUi/8ACtbftPJHk20kFS0VeF08RlavZC7O4kKUB+dfZCBJ2N/jWtaz6+hyyxJ6idWV8aIpoukokBC4ANwu+DtPncVplZ144PGsWfqsqTH070tSBv8AmL1WOyj+iloY2yR4A3VGAAcg5JySdTjc2iawe0400400400400400400401gR9fuKWVz42x/Jq9tCxh+Rqfna18yYNrCVELjf47JRIQgup2AE7Uda2cPfrF6bqbp0b09fINuywX0rU+C4hulM1PG8Ue0l9syASgNnaQwQ8nV/vp6ukNH1RdbbMSGu1p/y/jBloZ1qCp4PJjLbSccgjJzgRC2VvTRqMuSXEPqUk+kbU4CtJISoIC/uSEqPoaUQT2IGjrvqqdHoWeGsi7illeKJ22sB4V0fwWIz4wcfONZfQrItWQIXVDhhKRk5A5A8jao4byFOBjJAGH+X3bRfkOwpDiWQtelOLV+OxCex0ClXYbKdkJ9kAJPKBQW1mlcSQIzMzMAq5YZAO0nj2LtHP5cnwQManNHNhEXz4yASAT+vOeT8YA4ByNW6g5izHsGUyFpdSl5tOlPJ2QCkFKiSkj2Af22nQ/5ardV089RSuYF2s0TsxWMkFirD2lRyMEAAkEHJYgYxURPgEkADj4H+2P9/wBtZh455hoI1ayhAKglCuxSFKeQ4ClPU6QkuIQexSpQ+QpUnstz+3mPNz9Pbya2RlEa9yT2vlljdG3Evsw4V2yquN+Ay7x858s0QkbO9m5LYIyeFPPPJ5+AcfJOedUtk/liDcRXUssKRHjh5Tr7yAygpCVjY9J3skdlEAlwKJ7D81+z9B1tHUI9RMskj9sRxJ7mIUKuM4GFjQKABjam0rgYA+4USHAQk+0+NwUHkkktxg+TySAQPGNSdfwc6OylYN5a8hSg0K6+y+FjlMn5UuSDGx+M6++46En+k180wJbQrSlK7LCQDs7XPo76Xe3L1lf/AMIQ1S2WyR7dwkaooo562rO3YB2F+5SNZGYvLIrA4CAnDL6qrxFPdelrKhczUdFV19RwAmK6ZUgCkN7nCQMz8EKrKOCDiaLmcOsTdONNONNONNONNONNONNONNWj85Ys1l/jHJqR1SUoksxXVBQHVz4JrClNq2RoOIUpO/YB12BBPLU+tXT56k9Ob/QLIYpI1o62FuADJSVkT7SSQF3IzhXHKsAcHGDM/T+7Gy9WWmuEfcCSTRMASCEnhdGYY87eCy/zLuUYJyPOx57xo+NETsetZH8pfjLmx4b0xn9FFlNOOqdjusvuqSytKkFCC38+ke0hSSUJVrbuFpp4Kmqt1yt6xS0zSRytLSlpGK5kRxJGpEiPEUYEOQwZTwd2M57LdGuMEVfSyxyxzLFINkoIUjKyJtYhl2MCBlfA59w5jHurYS6uepdmxKfYkyEtSWJqCHEp3of03AFJ7JICik7JI2ofmPC2xUtdCkMKrFIRvV4xt9xHIaQKSChB2hjgEDgjVwqOoZlGScgg4/pyeAQCeSPj5B/uNYwycxlwrbqZLp+N4Hqp8Og6I0VBQJ/8qSsb9FP4BAuIllimpMiIDdGfAjB8n8oU/wCp5OQQPnjt++ZZCpJYA4wRnn/pyAPAycE8/A1dSH5pua6K2j569lhGujjqWnFrPYL6FlakoPsaVshKkko9p9ciNR0RRVMxZo6h5DkFVaVFAxjJZVITI8nGc8jXt++ITLYIPGRtzk/AwR48jj9M+dcJ7ydcZNIiQJUmNFq3nE7baktM/rniSU90II7gn7lNspWkIB0nQ9+iLpWgtiS1EcLvVJlVleNz2IzwojZ1O3AAG9mzuJJ84HwtTI7rvIEeCeX27sfB2e7jAJIPAOckZx7A/wCF54//AOBfo98cv/q48xzNpN7nTimGXGUR2buxeYhxP6gCnlR48FIU+UNBzuCG0gc2A/TfaTb/AEwtdaxLSdQV1wvMgcBXjD1DUccThWZMxLTHO07WLhlC+Br59fbr/E/Uy7xBCiWaCisyZfermlpkeWdMKMCWSY+0+FA+cakP5fzVmtONNONNONNONNONNONNONNU7lla3b43c1zr64yJVfIQZKB2XHKEF5DyUbHctuNoX02OwBTsb3yh9S2tL1YLvanqJKUV1vqoBUxLvkgYxM6TKn85jdFbbkbsYByRr3Wyse33GhrERZGp6qGTtvjZIN4QxtkH2uGKMcHAbd8ah7+o+HTZpUOpsG0vOSa+wqnp8RpqUqO4GQ5GmICPncjlcqOw6v5Ue2ioKOvR1sdV1TT1sc00YnlEdRTySU+1970xKpIVVmaLu7Wd0cltpbBYjWZfSsc1HEFSQxKJIpY4piwx3BlowSFWRUDlA0eecDAzrznZDiNbXW9olaoqlBUyFJZkRJCY70iKssLKXH45Qt0OJX0KSr5EnXYqO+QirrGDqkYmAWZShRlDRqcsy8knHuDFVGM84B1em3nChiVYEYIzkEYGP1O4cjcBjAxnPBxLy/x62qfLXEqoSVBalK6Mxme/v0UlSQQpR7aBAJ6kaPrU3tV6/BhWSaQkIAQwkbAOc7uWAK4G7zywxznXdVRgszIEz5AUqGwccjGBz8YOT5586tR/Oq+skvxZC4TUmM4ptxnohTqFtEhSOiGzojXpJITreyCeSRaaWdVkQSOjoCrNuUFTn+diARwctyB5/vTVrlUsj4BVmUc5/LkE8A4BPI5/XgedbTNuqTdxLBVgYcZuTGaE13swzEQ860yHnVK6dmm+ynHUtbcU0gpSC4oJPaaQJRy04gLzSK2FU72cgMQyFdwyMcZIwfkAgj1LXIrLKZRsjDZzjChlJwxJGAcYLeeSQCRr9HD6YsLrvHv0+eHcOqrL+cV9H47xViLahr4E2Dcuqj2hloZ/LbTzk9amkq2sNdO/3lQGdnQdhg6Z6P6esdPI8sdBbIE7joI2eSfdVysY1Zwg7tQ4Cl3IAG53OWOuTrG8zdQdUX28TxrFLX3KpmaJGLrGFbsom8qm/CRL7tiZz+RdX35LtRrTjTTjTTjTTjTTjTTjTTjTWhae6Sk60fR2AQR+40fR2PRB9EbB9c4IyCP9s/v4PB58gggjII51wRn5x/bzyCOD5B54IIIPIOsUs8+kPx3l9vJvquTPxWxmtvpnMQEMzKeW482pPzLrJnZMVwLUXCqC7H7OAFQKdoNj+pvQTo6/V8t1o+/ZK2cyPOtEsclFNI+4mRqSYMI2LNuJhePJGMYJGrnWL1W6ms9GlvqXiutLEEWE1e9amFEwO2tTEytImxQgWZX2gnaQSCI//NH8LLyTnDchrCfOWJ460suKZjz8GuW1qWsfcXpcDJlxkg6+8orQVb33B/Np6v6V55qtp4uqqGVMgKtVaJVmfn/3ZIq1ULAfMcWccFSNXNtn1CU9JGkdX05Vklss1Nc42UHjAVJaPcqgYAVpgOAAeDqPS7/gbfWe7Jmu031EeHGxLcR2dnVd+4stIKykoSqokLZWQ4T2S8VbAPY89sH01zxIkctbaJUjDEbVrYRuYjlgsp3pwcoxCscZHA1Vz9RFoO7bZrurMNpxNSOAOcjPbHPI8AYweedUli3/AGcnztMsnZ2Z/U94vp0S3S9YOUfj/LsnspinHCp5Tb0rKsZhx3VdlH5HYstsK6gsFKd8ltJ6HTlYoaq+UsMUYwsVNSOxjRFGwIZJe2rZGC7e7B9q55EZrfXancyGksdU7N7g1TWIgYlhncIUdyh5O0AD9W8jUhXg3+AB9JPjq3p8h8sZHnv1A2FRMhWbVDlcivxfx+/YRFoeb/mOJ4sxEXkEBqQ2l5qvyOzs2PlSlbgWEpQJ3ZPSPpq0TLUzmouc6srIKnYlOGHndBEF7qk4wJHYDHjniHXr1k6qulO9JSimtMEitG5pQ8lQY24IWeZmMRxkEwpGWBwTxqdaLFYhR2IkVlmNGjNNMR48dtDLEdhltLTLDDTYShplltCW2m0JShttKUISlKQBdJVCqFHAUYAwAAB4AAAAAHAAAAAA1aXLElmYszEkkkkkk+STySfJJyScknJ1yOfWmtCxsa3rf/4T/wDXHI8DP7f3OPHzjOSPP7jyOD8fPPjBOfnH+vjng5xznBwrh/UL5mp38lrcr8C5PYTYWQXsGhuMPp8ndx2ZSx5n6bH7SYZsGfPU1NjSq6znOQG+8aCLjrCTNq0QpsXF4ucbzxz2eeSRKiWOGSmjn+3aNpAsErsYpG2uHWSQqMxIkxZA6LG2QlR6V+ntwS0Vlh9T7PTUdTaLZV3Ohv8Acen4rxDcHpnmu9BTRw3GmphLTz0lVRUoqSI6mWW1Sir+0r5aikut4e87I8qVlBJVg+aUr1yxcufzGRj9sjF2zRznK51X89nw69CBZOsOyKtksOrdj6St4vIdSipW66ivjib7WqiMnf8Ac8EohAgcpkyuiAdwg9tcEkeT8mFdf+m79EVtzgHUfTlzjoJbcgpqe8UEl4cXKkSrAFupZ6kOKISJBVyrMgMhEkUPYJZf/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAIDAQEBAQEAAAAAAAAAAAgJBgcKBQMECwH/xAA3EAABBAEEAQMCBAQFBAMAAAACAQMEBQYABxESIQgTMRQiCTJBUQoVI2EWJDNSgRcnQnFDkcH/xAAeAQEAAgIDAQEBAAAAAAAAAAAABwgFBgMECQIBCv/EAD8RAAICAQMCBQMCAwUECwEAAAECAwQRAAUSBiEHEyIxQQgUUTJhFSOBFkJScZEXJDOhCRglQ1Nyk7HB0fDh/9oADAMBAAIRAxEAPwDv40000000000000000018n32YzLsiQ62xHYbN5994xbaZZbFTcddcNUBttsEUzMlQRFFIlREVdfLuqKzuwRFBZmYgKqjuSxPYADuSewHc6/QCSAO5JwB+SdVgbqfibYlFv7XB/TRtrk3qWyyqP6eZbYqb8fb2E+XYUIMkg111Ku2AcEgWTU1xVb/Uij25iiEtder/AKlujdj3SXp/pPaeovE/qGEZsbf0Dtz77BTPPhxu3qplhiYv6cRiYIVYTNFheUhbD4adQb1XF6w1LYttJwt7fLMe3QuexIj+5MZc8Ty7Z7FQAzHGopZZ+IH+IVRhMtC2D2upYUdlZKVFpjGfTLFpltXPeKS8ma1imDYo2SvDGiCSC4qNj2b7Q3uv1Z9f7U00m6+CXWHT9VFaQT3tsnumvDEXM016rFNUuRQIkZJlWIRqCGLuHXG/QeBM1mt51HqfYN1ctxjjo7jXbzXYLwjhlHmxPMxY/wAkuGGCO7AjWWbB/jGQL3Ia3GfUbt3E23C0fbhDmGOyLJ+orZyl0NLnH54z7KJAQjaQpsS1sXWf6hFDcZbcfDd+nPqo2i3HS3PealCfpa4yRS9SbDcE8m0TszI43rp+Rp9wqwQ8VeeWKeaZEdXiqzpkpHG89C7ns88tSzDYq3oyQlS5C0fngf8AgWeKxSkt6F4pwZwwMi4GbsqW6p8jqa++x+0gXVLbRWptZa1cpmdXz4j49mpMSXHNxh9lwfIm2ZCvlOeUVEtVte67bvm3U932e/U3Ta9wgSzR3CjPHZqWq8gyksE8TNHIhwRlWOGBU4YEDSJYpIZHimR4pY2KvHIpV0Ye4ZWAII/BGvT139fGmmmmmmmmmmmmmmmmmmmmmmmmtY5Durj1FLdgMi9azGDVt8YhNhHYdHnllySfPZ0VRUIWW3kBUITITEhTry2YojxY5b8D8k4xn2z+2svU2W3aQSELDGw5K0meTL/iVAM8cexYrn4z21Bz1izNxd+sAqdt8GnRMTxG2uFd3S5uH49/keOREZciYvVvtQm47dRYylceyZHZUWTLiRI1az70SbYMOQB4/bJ151v0rX6b6H3Cjt1G/cKdVvJelpbtc2jgo/h+2uIvt1jsOX+/821DJJCiwxrMkk0Tyn4ZbX0ztPUUe49WmxZr1ojJSihqedX+7B9LWR5okAUDERjikCu3NihCyJ5G3WOYhtRjNZiGI1sKtroQNLJKKw1GesJINgEmdKNrgnJD6iggpmSsMIDDSi2yiayPRXTvTPhh07t3S3TtWvWhgjjfcLaRKlndLqxotrcLknqkmmmcejzJHaGLESHhGus1v9ncuq9ysbrc5BMtHSqKSK231i2a9Ouv6FjjXBcqoMkpaR/VIRrbEK7jyT4Hj2z4RQL4NCT4VBIuUVPCqqqi8qnK863eDeK9omMYZXGOLqGVlIHZgcjDBsE44nuP89Zm2yeuvIjiy9wyEgqQR3HYYIPfAGR76g16ofRZgO60afeY7Ai0uQPxpEplYkNjo3YttOe47HH2uEGQBp2hCnUXOSjEz7iBqqXjN9PW0btbudUdEqOn9+sVLMliLbYUir2pfJZZ1nrwx/7xBYiZEFdQs9eRVehNAX8l5b6Y6yr73tK9N9aRi7DHJFBU3eTibkEUjL5Qlmf1ZhkX1WGJDwsVnR+HmDVP4bXqOzDYXeFPSLunKkvY5k01uFhazn5Tj2PZSavo0xD+rVx2RU5KRRmnVjKrDE8402QMWQ9ZPTok+mLxQ3fw36+fww6igt1Oneo93NBdvtsD/Zbqu26pt71Cqog2rqItHDIIoY45b1qjeiSuj3lEYeJPSEdCVpa0kc8let9xHNEG42qAdycH1cmrR4kDFyyIJY3aRlUjor16j6hXTTTTTTTTTTTTTTTTTTXhWeTUFOqjZW0OM4nP9FXUckePK8R2UcfX/hvXKkMsn6I2YfnGB/qcD/nrkSKST9CM37gHA/zPsP3ye2tZZlu1QRKCzSrky/rX45xYcpI6sttPPp7fuibpg4JtAROgqNF1MRVRVOU18WomqwPNMyRgYUDllssQOwAIyMk++MAnuNZLbttmsW4UMYdQwd1B5BkUgkHGQVbsDg/ODgnUR49/W8GhuC2flRNepEa/CERkpGpLyS8qvzynjlETVzfqdwQgGSSXAJJA9yxBJJ7kAHOc9s6kL7C56SfMIAHpX0rjHsEUEBR7eoHH5OsavrnpFddiPBz0cHjtyJcCS8JyqoC/b28fPCoifHGr75IFgksUz5b8HOORKNxUnABfKE49wT37Fe2Rs2yVy88cNuMunJBz4gOuWC5JC4Yd+4YAjHv751pjtrbZW/JZgMOGMV9AlPkvtMRyXlUA3S55dVPuAA7mor3RtRVF1FGw7ju/VU1+nUqyOKdjy7lhj5UFZ+PpUzOPU7KqyIkYeQqRJw4kEyPvVHa+nIas9uxGhsxcq8CDzJplGMt5S91QE8WZiiA4BbPtuOrq7iCTauMtvCihyrTyKqoPHHCOo2fjwvCD+n5V+EkGts27UWVjXSZBxDNHMrN2+f5oiYEn/CpHt2ye0e3Nz2y2rgTPEe+BJCyLk+2WjMin9snt3wRr07q7RoBjOC7GfGM84vvgTfKIgKCgpcI4iKBIpApdf3Ttrn3O+VDQyo9eb7SbImR4yQ3AqVLjiy+hgWXkBkerBxrk2TbjMTPG0c8RtQrmN1cDBZXDKueB9SEKwBbuMZ7mhv8AETprrF8x259QGJHLpLGnyJth26j9xaHiSKNPF7PQ3P8AORpUKMSSo7MNJTrsgwZVx5rzW8atvEvWT7zFFahrdUUpoILMUs0Mke99OTSPUt7fcV2FacCOeWMRJ53LaohErSAI0i+IWy8el9suV5ITc2GzFDZLRJK0dLcYonSG5CQrSIA8SsXYRkWZWf8Als7L1J+m7dSPvbsTtXukw6087mGG1FlYkxyjKXQMfR3gMoQiSMhcRZwsoYiXsoCkKKvGvT7wi6zXxA8N+kuqyGW1uW1rFuUbFS0W8bbNNtW8xkoSpCbpStqvsSgUsqklRULc6ZoX7NU+0bhoyQRmGVRLCcH8xuvyRnOCffW7dSRroaaaaaaaaaaaaa13uVOuYFEDtU1LJgpHW1fgATkqLC9oy95Ab5eSOjiJ9S4yim22nJJ7KuqncpLE82JOOeP8tXICs+QAuT25EZ4huxPb3I1z1whf1kZx6Q2ACcgY79s47gH3P741FK9zLFccYO2t5oBFEUU50vlI4KiKvCvEJCJ8ovdWQ4H/AOVR/NrvXbMdCMyWmKJgnOMKMDPdjxQexJycgdyMd9bRt23XN1kWrRh5zE+mKI5lbJAzwX1sPYDJ79goJwNRn3F9SGBXtbLrqezE5lZNaIfacQ/faIerpt+2RD7bSEjvuESCTbRqK9iEFijqrrjbZKV6Ct5rz0JI2kWON5CyHPmMGVRGEiXLuxchVRskEqDL/Svhd1DUtVbd2txr3IZMGTCeWwwUVuRD8nwVAC5DOoIKhyNG/wDVSGaITcxshVU5FS4X9FRB58Kq+eP+PnxqGH67qkjhYQgk8suFOM4wMnGScjtn/wBsycOh7C45QOuPbiOQ/Hcjtjt8H2zn21j9vvC220cVuWHZ40QR7pwPdUHsS888J8+EThef3VdapvniSkKGvDOp811QKWyq8mCk59xjOSe3v2IJyNh2noBmkE0ldsRqXJ4nOFAYAKAcZ9u+ScfnGpS4vkECtroUWL7aNMtNkvVRQnXiRCdePrz2ddNVIyVVXsq/HCcTxs9ulS2+rXr+WsaRh3CcQZJXXlLLIykcpJG5MzfJ/piEN62+5bv2rFhnaSRyo5huMcakiOJCR6I0QBEUdgMY9yTtCtyxpzgRJOSUeyLwpeBVFRC5RE7EqKqKBfqXJJwmsum5A/pxhiuR2JBAOQG5ADJOe4Y9yc4wDrNjaXXOVYEAlSPSp7jBI45OACAQQDhR++s4jrEuIwsvoH38E24qIpMur4E0X/b56n8ookvKcccZdEhvRKshBIIeNiM8GwAT2GOLD0uO3JTjIIGMKXmoTNImf8MiAnDp3IGP8QOGUnuGAIz3BjX6iPT/AIr6itqsj28lzRoLGRFkrQ3Ito5GrbjgiYemwxVBlQJEgRbsGhQJJRjd+meaeJCWIPEzwk6c8T9lhoTyPtO47TbG47NuNPCRVdwTl3swKBHPWnLsllcLLwd3hljkwTtFfqDd6NW/QdjcqbtWWCxFKPMkIXi0DRyMC6tDgYAyjA8WVxxIxH8KjAd99ltisZ2yz+ps6rIMey66gO1MiZEt6scdO0R92dCnxHFEqV835sitOWiy21JSGRNJ0Hne79NewdUdOdHdVbd1VXenU/tluk/S1WSOKNl2x6dAW7CeW7lYrm9jcpo1IiSYFrcUKRWQq6L1LRqUqm11HjhS9UoyrcnisrYE8s0j2aiqU9P8qCVEYZMi94ZsPCeV2Gp71oemmmmmmmmmmmmnz86aaqC3zuLPafcPOMboLl2LDYkR7ithzgjy4zcG+gM2hQYzcwXRZiRJb0uHHBk46jHjtjyp9zKM9x3zedkt71S2rd5kao0VuOpaVLVdYL0fnCNI7JlCRLKJ441jMaqqKOJAblZrpDYdr6t2XYdy3XaoZZZ45KNi1UaWrYNjbpzW8+SWsY3eaWAQyyNIJSzuzHt6RBbJvUnCeSTUZJt7hF0ryEzJeiRbChuXwbcbfQ27mO9LMCR1lp4fZQRbeaB0R5EVSIN28ftypiWlu3THTu7rlo5o1ju7bNKoZTnzoJp4wW4gtwTs6gqMY1Pe1eA8ZEN/Z+ruqNp4ASQ+fPU3anGxVkK/aWIYiVAdkIdvUp4k5J1HXKN/NhaxhyPM2byuAaCIJLqN3bmY+h9vuNGJkaFGFRT7hRWnFVR6kvH3agjqTxo8H4OTbt4T7tUlkZV/7A6wtHLMx5MK9g1gqgg9kDesBewJdZY2bwf8UJmRqPiXs91AMlN26LpRNjHbMlV52YnIUk8QAcjljA1E/kvpwyYlm/X+oeqcfQiViv3BZdaaMuvZG2zsmGgEeBRBBsG+33iHdSIsD/tJ+nvdY0kfp/xBpufaNb+3u8RUgFeU+5AsFJyGBBPIe3ca2BeivGjameAXvDu3xODNPtNxOQ/usnCi3HIGCBjHt799SnpvV9tJi9fBit1e5NgkOM1GFyxl0bsmR7LYB7sh4LEu7zvXs44qIpOERKvnW5/9ZLwi6eqRqu2eIFwRRqiLJJszvKVUYyV3BQXOPUxKjkTg/Bj2z9PfiTvtmaWTc+iKRmlaRhXg3UIgc54orVv0IDgKTnH799ZRF9feHur7NPtvk8lxVRWifyCvjK4aKnCGjcCx6ISKSKSC6Q8coiqvKYGz9a/QNdvLo+HvV1qXv5Qs7tt1cyOO/EiEWyowMsVEhXJ4qRg6/D9IXVRXzdx656fgj7+YIdotylVOckGSxWzxODjKg9wSABna1d61slkRw/lm2T1UPREF62yR2e1xx+ZAjY7Tlwn7C/2X/ei+dbHU+sWxYiQ7b4ZJT5YAfduoLVpRhQR/Kr7bT5fg4lXIz7e41ef6Vdtikb7/AMQJLhzkx7bstes/z2Ek243QM4PvCcE/sRrfu1O92TZlLZCTHoaUTNFIKuvIXFQ1+9Ves5Mx5VJSJTIFFPlU6pwmpx8MfFjqLrmwotU9k2iNjnyNsoFGIYhiTNelsSlsZJZOOSAe2cNFXiB4W7D0jVkerZ3ndJFUjzdxv5QFQQMQ0oa8QAHEAPyBBIII1aXslXo3hrd89JKZPyabMnyH1cV1tqNFlPVtfDjLyQgwzEiA66ja+25OkTJAfa8KJYqisvlyTTyGSSeaST9RKRxq3lwxxj2ULEiGQKArTNI4Hq1VXqeaNtxFSCJYq9CCGBAECPJI6LPZmlP6nd55XWMv6lrxwRnuhJ3Bru61zTTTTTTTTTTTTTTTVMP4kdHbVO4NLlENlwYN/hzEL3+P6b1hUTpwS2VRF5UmIkqqcUlTwjwIi8Kqaqp4+bpuHSO97X1JVUvT3DapdtuxjvyNWdpORXI9SJZjZG9yA6g4LAXW+mV6G89P7psdhl+623eRdiB/VHDcghEZH7PJXsqQDntnscHVE+V3U2ntXpsmsNyQIOttTAQ1caB1Op9R7ICn8qqqKl1+0VRNU43Prja7M81uWuwnCSYnXllVYZbCkhWKgZ9jxHYEKcavztW0SPTSrHaUQlkZ4SAFcowK5OCcH8Zx2JIJ1H/J3Z2UPMx4DU2Qjn+r9WAqfvKRcqCgSqQIPlPAKiL14JERVgTq3qmhetRNVnleGIM8glVMNPyP/CwCxAXIzxUjJUkjuJJ2Ov8AYK7T+RGfZPKY4EfbHLOByz7nuPnI9ta9n47eUzTpFyDiCpICtc9E4/KSqJcrynklVfPPC8prV6+6UL0iqO4yFJDYJOR3HtjtnsAD8nW4JPXkUMRk9skE47H9iB3A7f07d9Y3ThdzbAG3XewI4n2+y0njnjyqN8+fC8oqePK8az00FZ0WGrCzzyjimHc927A9icAEjkT27++MZ+ZrkNcchxA79/c+2exye5zjH/1nU3NraFluTEeJpCQibVeqISoqcduBXzwi9l+F5RU8ftm+nOhVjnit3EM9jlkEDkqZxlUGAcdyCSTkdyB31G3VPULyV5oo5OICt7kDPY9iw9sdiAPxj8atiwPb+qtaOITsBjsccTV7rGIVQx5Dq4BGpH4+5v8AMKqiInJJxdDpjwno3NqqyzUUzJEsokxCysrKCjLIjNyfvkoCCPSMHI1TDqbru5R3KwkVt/RKV8smUNkHB5Rso4J8q+SGGT2wRrUs9y4w3PLWgp5LzIn/AE2/pHFR1sn+qdezR+4yQqvU+qg4I+UUVIVX96dq3Ok+tLOz0pHT9KIsTZZDMUIDcSRHggrJ/fAwfSrLrL3Hp9TdLV9yvxpKAGkbzQeLrEDkjIHmAkZXGVJzkniw10bbS49JxTbDb/HJzRMWFPiFBCsmSJDJuybrY62IEaKSGQzSfQiQlQl5XleedX/2+B61CnXkz5kNaGOQn3MiRqHJ+e7Anv3/AD315pdQ3Itw33ebsDcq9nc7s1dgCAa72JDAQDggGHhgEDA7YGMa2Fruaw+mmmmmmmmmmmmmmmqz/wAS2EhYPt5aqnCQ7y+gEf7JYwa+R1/v2/lirx+vXjVX/qngJ6N2m17LX3SaJmzjAsVuWPjIIgORkDt3/a1X0pz46o6hp9iZ9rqTqp+TWtPHnt+Puh+3f841XDiOy+3ua0rEyzYOa7KZ5Ps6goJqn3oiAIKJCXKdhLnhOE4/SvvQ/hl0b1BtMV6wJLMtiMs4Mg4BwByAVFUggk98n+vsbKdT+InVfT+5S1qzpBFC4C+gklcngcsxUqwCnBGM6x649N+EYmkh+nhfeQn0N8lcVvnlVEO3hE8ovxyicpyiKutN608HendihsPttcIDyOWAcjlk9mIzg5HbOe3bv3Gc2DxW37e2iivSjiOIZI8Ir4AwWx89j7YH6T3OoS7p7btNFLNpsezZGpogfb8qnPCJ8Fyi+eEXhFTj5Wk/UeyfwO7LdhaSKETEWU8slCobj5sWAoEhAy4PFG5BiytnnZTpvqRrUMcDMGdkHljmOWcD0HLEgAj09sjAGO+oq1NdWwLQ2SRRd9whNXB4VPu4VE88Ii8/av7/ADyvxM/QtXZr0MM8MxmmkVATIcsDjBBAPpBIzkDBJ+Rrn3XcbihuY4qB2C91x2wc5PcfPcY/A1NrZWiiWMyO431bVogEBVRVPcE1VXQ5VUTsIoigvZFUl+74TVnuh+kau5XYTgKI3GASv61YHkuQff4UhsnGSPmFutuoZqdSZSxbkhJ457oVX0sB/hZs5yMY9tWYYo6ePVSvSnScCOgEy3z/AKjiCostpyX5RJBQUH7R8qiIKcatPTgTpjaZLF2UyVqwR44+wLMqqsMKLkdg4UAKFUfAAB1Uzd5hvu5LFVj4SzBlkkwfQpYGWViB/eXJOSxYkaxLGMFW/wBxKixlEL8q6yWtad7f6gLOsGI4i0S/7BcQePBKgp5XnjUedMdNtuvVS75PIWluX1mkVh6o0lmUKkZK+oRocAn1dgQMjGtn37qP+F9LWtuhXjDR2uysZH6W8ms7FnGfd+OWJ/OCVGTroW1cPXn/AKaaaaaaaaaaaaaaaaaar5/Engk/sDXTmxVTrM9qHCVE8oxKp8gimn9kJ5yOq/3FP/aV3+p6sZ/C+xIBk1t1pynABIRobcJ/1aRB2x37Z74NkvpYsCLxNauxwtzYb0YH+KSK3t869vzwjkx+P9dVJ7CZRM5drjV4W2HOQIkUm0Q+ydOxLwi/nXr+qJql/gj1Lb5zbc/nBYJCFbH8v1E8BnsMsAx49zhSw7e1zvFbY65EdxREXkj9S8sOSuDkDB9iVAb8sBrPN7N6tt9sWatrcDJo1C5eR7ORVC9FsJSzAq0hpNQUgQ5QtGCz4wti+rKyFJ36dXPYke1OXUlHcN9rzRUqv3boFEjCSOFI+bcELtM6IPVgEkgKP1ds6g+jvO0dOTRPud0UhMHeIPHLIzrAU5/8JGIxzUgNjl3xy4nFTW5XrG2gjFYpWhkFrLsJVgsSUFfCWvNkWa6JWqD7UmZNXs3HdckhJjt8m+L3UnRXrXzdvp/33f4rybhvGx1JblywzwSz27CpTkhriskS0KtiPzlm+5MhMwPEQrG3qYjeKXj503tMsJpU90tJHBCIZYo60XOwryecS0k5kMbxCJgpRQWL8lypJiDm2+WJPymp5VOUUD8hxx6AcurKExLbH7HEKbapU1yvhHedeMSlrG5CKokpum4mL2L6bOu+mmhbb+oOl7XmYjGDvFAgovLJNzbHgELGJMoZfQznkQvqG7n6kelLUZG67P1NVjjy0bmvSnDgkKCo+6iZnVZnYOVOQi4OSAZM+nD1A1djY09VBsnJVjOeYZBoYNgTHvIJFIZbso8Y6gzaUegm3YG2rvLKuE6Qocq7VH1r0BBc3TqPp6xDt22qktjdqNmhc2/y2liro6vBalky80kSBXRHDuBjOTrr2OsOhut3p7dsu/15L+4F44tut17te68ixyzOmJYVhXjGrEYleMYwHJwDbXRZVZWjMdZhq2DaB1jifb4RE7EXHKnx8IicIn6qqrxk7Pipd6yetBAJK+3xSKREWy8zrgAvgAAKCSFBOT2yO41r8vR9PZDO6ASWJAQ0pBCqpOSFHcAdu5wf3/BklsWC2m623UXqpCWX0clR/wBwV81qe5yn7IEZVXleUTn4TU9eGZabc6IYHAkVu+fdFMhP9FU9/wAn29tQ14kYq9M77ICDjbrKZ+MzqYR3/wA5MAY9z21eHqzeqW6aaaaaaaaaaaaaaaaaaif62Mc/xL6eMvionJQ5uOTxXxyHW+gRTNOf1RmW7x+/x5541GPjFsbdQ+Hu/bcpCs61JeRAPFYrkDSMMg+oR88fk/I9xLfgbvH8E8TNgtnJV03GuR8MZKFhkU+xAMkaEnOBjJBA7URVptYZkEYIzgNMoaB95CiEBF1XuS+OxComf/ih8oiqKefMf7lujOq4IqrBIfM4YLAZUyADzGKqCxQKz4wOYIzx7n0hsRnqbZJnnVnk4cwUU5DBQchRy7AkgDJPH9+2qCfUrvhdbp7s5dkkqM5BanTIxDVtm6LUZmJAagVzbzBkqfXQqdmJAmPeUkzgnTGwjNTUiMXbkjjq7ZSqpMHUwRWZHDKRLNYjWcyAKSCqLIETJYgZPIg685N73Kzue/bhamgaMCwyLARxEaxfyUDqcfzEiVUcjsXDMAA3Efph2sSw2Wj2GFZRFxjcPF2CR7HceugxXJsv969mo9IKekJu8yCzhVr8aalNDyIYsmraQaCrSdBuhb7tAQPt/OvKsVuJJC8cEiV5rTtKccpOAmdliIZUE3FlHGKPzFlbWdrzSPtUTVJ1rWoAqmKF2rSTZkfzH5n1TOFYEoJO8YUKnpbj+XHt5Mjd2XyqFutUs5eUS3oXtnW8rjWuWZhkedjfe5av1tXlk2/pJuP43jLdpDtXSxhyuZcsYVTJOXKnOxXu5tl6Q0LC34fPEUqCokqSTWp7XLJAScyqywoWDExFV58TyDlXzsN62dtIvgTvzjaibOZ52kEv85gs/mKYY4uaMfLKB3VTycsBDGny+wh7jT8ohVsOgGfkUu2exunEY9RXxpdutj/IYTLwSgjwoBI1GgC4L7sA4sV4esuIBD8pPCZbDSVYWinkkFiiyRvBJBK4keo8TrJE8Q7KY5EwhQZUFRjU7LWBOs8EjQSB2kjkhZ4jC3I8WjdeLxlcniVORgHkD3HSt6at0DzfbXE7x5rrIcgpAeMgMUlFAcKEE8QNxwmksWGmppR1dkLDdfdhnIkFHJ46jXtr/sb17u+wQSLarR2YblNyirItPc4ob9dJlBISWCOdY3C+k8OagKwAut01uR6u6H2bfpozXnkglqWVDFkNjb5pKU0sbN3ZJmrmUAgleZQsWUsbTPSKjN3vrgzQFykEb60fbX/x+lx2zRlU44Vesp1nyvCeURUTlObe+EohtblXZMjyYJpXjYYKt5JRBnIJIMhb2H6QSO+dQH4yiWp0hu5b2syU60br+kh7sDtnv25RxsMd/nv8auw1ZDVNtNNNNNNNNNNNNNNNNNNaL9TLYnsJuk4ScjDxaVZl/ZKl6PZqX9kD6Tsq/oiKv6a1nrID+yu/sRkR7Xam/wDQjM2f6eXn49vce43fw3JHXnSqA4M28Vqw/c2ya2P6+bj59/Y+x5S9+s2uVxzI5mKzWGMgjVU+bUnIYSVGObBYOWzFlMo4CrHmkz9G+4Bo6yD5PMr7jYa8eOudz2OTrnYYuoIbFnZ7++VKN+KralqTLWtzCBp0sQMssf2/PzzwYc+Hl5AbkPWahtW9Vejd7m2KSGvu9ParVzb5LNeOzC1mpAbCxPBKODiwsfkcj3QSBwCygap+XCWbh65unJOMZHNKorcmsQ+jzGLNRchwLN9wqGEotZ2YlPtaLCANlhj3lbK8rUlI0YSW2/Ra/siVq1WCv5Zjp1durxxmKyZRAKWKsbFrfFm8uGOInBbmwZioPfzphhh3C1et2BWsWLDWr054TRkzSQ2twwFjsKFaRKzMAOSoJFBU9wPlOhwaV3IXQo62WWF3FVEZmQY1hOtp7E2fWxKW0o2LOTczH6Z9JsV5l4prLMb6ivistyHrWO0vHXqvH5hkhV/tePF+Ess7RstcQvAZXeR42M6/94qoFHCMswATiKEzssMBFWZYl4s5aQebxR40Mj5jAUHkO6l4k78+OvrPs7PcigqLqTDdGHfwNx2bUqyybpZEqn2txqsyy4atplLjcWVkDcyFctV1BVTXjjyLRhIzyQhUZp8u31POWeyEnH8RszSWUazNlFpUq8bIo4lljaOONY6yqkUlhndwJJWkbtWdxsXqtPlHEiJXuRr5YihLJWLXJGlaKFGsSO07CMysxHBU5BVTj4dXsnTWLrYU8CiKwSThwuwJOU2v1MGszypprXH7ubH+gZdKFFcs5VFk8auSxsKHJKsqdYc92yrDlbLT6fgdVMaJkmBgj2Zg/Cx5JikceX2UFykoUO0ciFVWQMjNgLMjd1xHkGMN6yQiyxh0Zu6n0likgGeEmF7lhqyz0cZXkaY5aUlrArKzG8VkwIlAjbU3+eWEjIYLGayZNjIdu7KEDTcPI676VmK2hkkkyedE2VbOsPjRQ2HYOvKVyqLSb7vdSruG5GSdDUSrHWh26h5FdU5JNMlaR5HadgeIfywHAW0fgTY6g3rou7StLVGxbHcm2/bAkEn3klixI+53TZmaZ43ihF6BIlSFMByGcshJvl/Dvjjc722Fr3N1KvA7yTyaovQ3rOjgCqKKInJBNdTz9yoir+/E8eBMZsz2rxdmC0nTDYOGaWAAnHzx5jJPfuM/Go8+o2X7LpanQKKjT73XIK5wyJXuyFfc9gyIR8fkZxq7TVl9Ut0000000000000000001qrfatK42S3gqgRVcsdsM8htIP5vdkYvaNNKPzwSOEKiqeUVEVPOsVvlY3Nk3ioPe1td+uP85qssYx+4LAjWy9F2xR6w6UusQFqdSbHYbPtxi3Oq7Z9uxVSD39tcUp5oxPhyoslWn1dfkMSBeRHAJvnoTbgHyiiYqSEC8oQkqKiouvCvxgNqtvQrwF4bInM6yLkPF5EoMUkb55pKHTKsBleJOeWCPd/Ytphlgw6B67w8HiYAq6SR4dHUgo6OrFWDZBB9sHWj8y2Y2+yuljwMdpcKwSwjSlkpdVGA4m647FVh33a+U2/WowLTz/0zpTHGpL8dtl9pgB+rdNcx4dfUf4g9HbxPP1Na3Tr/AGm1TFM7Tuu5L59ecTwvDfpXLNDcJFnjRJYWgdDFYWbMh5RodRX4jfTX0X1VtMMXS9Paeh9zq2TZG47bs9Yw2K4hlSSlarRyVIjE7tFIJs+ZD5PCMBZJAYZZbt7ufhT8yMlRWX7AOolbbY3hOG2fMRW3ROKrDWGPy2+EdFXXZserjOO9mm2nWW/qnby9E+Pnhb1bShsT72nTW4kASbX1DX23bpICEwyR3zVk2+1GW5FXitwSEcfNrRkIBS/q76efF3pa08Vfp1upaOS1bdunKw3FZkKhlSShHGL0DJhSyy1jGG5LDNInItgkB7cJ9HYEjGJ9dIRZDlYr+C7fxYLc0frlrnj/AO38qOwbBlWvSClWUBHuk+O3Li/UsTIkhy+JHhlt1R7NnrPp51jErItC5td+QkMWjKVNtr2p5HIChlCgM3IArlXTWNu8H/GXdrSVK3h91HEWYLzv7FJtVdSwIIe1uUFWrEBnPJplCjOcY1ILa7CPpZ8OwzuVjNx7Sm8Ve1i2LRW3XXUcdFHCrKOvKGbcxxqY+2E2zByZDYcblkCuI7WLxN+p+7Ps9zavDjbtw2rcJLUHDqm/X2nzUrQy+ZPHW2qSjdjU2yiDzZ7DPGgOIY5SCtqvDz6RZqG41t38R721bvVStN5nTVCK35JsSx8YZLW5xyU2f7XLMYa8LRvKEPnvGh5zlwW8x3GWZESggwaqNOnvW01uCKNtSLF9hlp+a8glx77zUaODrq9VNW2kVe6+a+7H1t1n151DBP1fucu8bpFFHUhtTxVq0n2kUskwi8qpBXhCq80pJEYzywWBYDU8p4f9NdF7ZPQ6Z2mDaKEliS3LWgM7o1mSKKJ5WexJNIWaOGIYEh9Kew7nV+n4RFqGT5Lu1atErrdLjmO1vu8Lx3urObKUEL48jRivC+V458onj1J8A6D1dktyOpBdaoycZHISsR8k91Ge/fAPsca87/qx/wB3PTdbHEz29wmK4xn7aGGPJHt2NkjP59sZIN5mp/1TPTTTTTTTTTTTTTTTTTTXn20Bq1qrKrfFDYsYEuA8CrwhNS2HI7gqvnwoOEi8Iq+fhdfjKGBVv0sMH/I9j/y/r+O+uWCVoJ4Z0OHgmimQ/hopFkU/0KjX8+fdbHss2q3Ny/GJ7LsqJW3dlDamMipx5LcWY801KX2u/wBM68yIG7HeUCbNVD7unZfIXx+6BtbV1juq2YWNaCeVILiANCyNM5HJgT5bMGRuLkMSSBy1/QJ4Y75S6k6W2XdK7LG16hUnkgc4dGevGWVfbnwcsodQQVCnGDgYZMzNqdVyq2W24rcptAPqra9SExcbNBeF1o+jgASsvsvRnRRWpLDzJONHXyps0lLcK9+uY/MgkLKCH4srK0bqSjK6ho3YB43SVCQ8UkcgVxId/ZoN0qS0bAbyLKqrFOBZWR0kRuLq8T8ZEVjHNHJDIFKSxvGzI0dcjr1Yky7KHmWZRJbjbnvyv5o1JluR24htR4MXtEEAbB725QgQGRvB9xqJqmpg2reWlhgo2um+nJ66uhjr/ZPFCszTxu9qUrMZDI0YeEsHAEbn0/OtO/2WV0sTXq3VfVtPcJ1EbXI9yheX7dYWhSqA1UR+SjlLCgqWMycnZuXbFI0SVc2IC9Z2sw7Orq6x6JOVl5192OcF9iRIJwXER9DYNxwV5X6ibNdccdVY4x8198KsKx1ttoxSVtzt26slTzo1VbIsxSVoFR0zEwmVI8HIir10iVR5vm9yz0VXE1mxe3rcrcFjZKG13IbfkSrK+3PTmivs8scmLBarI7DBDS3bkkrSs8AgyfH/AKmhkyGWbzIb8nQjNOvXEz6wG3Y6O9yidGWhb903lR4h5B322lBBERQsJvEq75FXB2fZ9rEclh0h2uqYZJBP5ShbBMkhcII14A5KlnLM5ckdvp/pwbGlmSXe9/3lrKV0Lb5dW55f25mKvAFhhWB5vOPnAZUhI1UKqcRu3F3bqfJbFXhiAaoCE473X7lROUBtHOOEVfzKK88fGti6C6MuRbslx444Y2QoPUpkYswP6U5FfTkEtxySO/vjpdSTVxVdVUSEeokLj2Htk4yeQH5B99ddX4M+CV2L7MZ7esvPTLTJ76i/mEx7qCK1Vw7QYkZhoFJG2WfrX3OTNxw3HzVT6I2236jeHmzxbT0vRKsWluF5pWIwOKhUjVV+AMOckkksScDCjx6+qrepty65p0W4rW2unMtdF9+VmSN5pHP+NjGiAABVSNQByLs1yWt31V/TTTTTTTTTTTTTTTTTTTTTXFn+Kvt/Vbfep7caBjtiTDcuezffyyeaMFGK+gxrcwgzVUWHorbkwgZafJiSy2gtJ9UjavrS/wCpLYYZLk04lBN6qs08UnowzIY2dJM8GTkod1kMeMketP0+xv0jdSWt68N9i+9hUvS86gliHDealOd66+bEBzjlKKoZ0DqzBnJjJCCoCyya0Y7BJaRSHlO7ramvHwn3CqISfrynKKn6qnC6orDslcScRyjbIDJz4YPvnGD2I4kHuCPbtq7COcJ/fXuRjA+M+4wOx7d/xrXNtkDr7zJPSvZFHVRWQFgG5HZswFk0cbI0USJHR9owdUwBCJQUwLaKW2JEjhIfMITvIWlLwgOp5gqwXuFKHmGTDHIyM6+DIx/U3zlfgD/+/wBR7e3bXnR72RHd9xh42XuroK4JqhKj7RNOohcqqK424YEqKpKhL55XnWRFV4zzQ8GCsgIIBCsChAYDIDKSDj4JH511nEco4yJzXKnDd8lGDKSPnDKp7n4Gc4169dar7gryq8KnhOS/X5Tjx8f8cceU5TXVSvHDNHIVXirA47ewPtjA759v3/PtrilYtGxBJyMds9iQQMj2/IPx7++NSE2+F+dYQwdkMV7Rutor80zBBRSRPcGO0Jy3U8p4YYcXj54TlUnboWoLc9ZU4xIzRjzJsr6T7ERhTK4IPcpEcd8ge+oz6rsitVnch5GCN/Li984YkcmKxKfwXkXPxk9tdy34b+3tXgnpXwSVBfkzJWXBKvbCXKEGlNxmU9UMtxo4EaRofSvOU0wbsh4HJj6uSHOwoHoPtdVaW2bfUVzIsNOv6yoTk0kayueAJ4+pyACzEAAFjjXiZ40b7Y33xD3+aeNIVq2ftIooyWCogDks5xzkJcKzhUBCLhBjU8dd7UVaaaaaaaaaaaaaaaaaaaaaa5Gfx88XHGd/8UygaexrYueYBAcG9IHnKa8uaKRKqpsZl8k9tizrq1uoSdFZcM0jP18s4wLLV92sH1G7fFJRp3SJAftLETsf+CxjbkiA47SBXywOQygLgd9en/0N9QrL0tu+yvbhkl2zfGkSr2FqrWuxRSpK0Y9UlaWcWDHLxHGRJk5sEVI+b6ynz2FNUF4G+V/qB3VskReUVFHx5RE554VF8r+2qNVKteTABiY+xVuIYewHYgt7/AH7/nHostiTC8VLDGQwPIH5PsRj898dj7DB1hE+9H+mDz7he48LYqHKmJqq8EpinICiCqGXPhC/TlNbFV23sWjRQEjLMGwAQB7d8B85BAw2SOwODrja1KASSw/PpBA+Pn89h/XPxr5rdIKp1c88+fI88ov/ALRf/v8A/V5+l27lnKNg/kH/AEHYfue39ddSS/KPzkfhQc+3zjP9Pk/5a9attJUhxAYV9w1XhG2kcNV8+E6N9uOePPj55RfPHPWnoojIGRAcgjIGf6HHc49iPzgEnXWkuzOD3J7HHY4Hb5IOBgfkf/OpO7Tw5z99SsymJjSyp0OMzDZjm5ZTH5D4NsRYkXqbpyZJkDLAI064TpgIsOnyGpy8OK8MtyjDHFKcvEqJGnqY8l9KqwJw3bB9XzgY7CJuuL4r7fenlsRIsUM0rSyyDyY0VCWeVjhQihSzer9IxkZB1/RQ9P2JBguyG1GJjVSqN6nwLGmp9RNcJyZX28irjzLqNLMuFWU3bSZqPiiCAOqYAAAIil9VUIqIueKIiKD7hEUIoOPkKAP6a8N+p753TqLfNwMy2Bb3W9Kk6LxSWE2JBC6L/dQwhOAPcLjOTnW39fWsHppppppppppppppppppppprV28Gye02/+E2G3W82A45uLhlkSOP0mRwRlNMSgA22rCsltkzYU1tHBxxIlvUS4NnE9w/ppbSmXOP3Tadt3ulNt27Uq+4UpxiWtZjEkbfhgD3R190kQq6HujKe+s7051P1B0husG99M7ve2XdK+RHcozNE5QkFoZk7xWK7lVMlexHLBJxXnG2Bijzdf+Hd9OuQTpdnspvRuns6ckjNqgvYtTuviNfyXYGq+PavY3mAsCnAqlhnFk6oonV0F7KVf9++mLoPdmeShY3LZndi3GJ0twIST+lJ+Mxx2/XYcn3JPxb7pP66fE3Zo4oOotm2HqmOMBWsKJ9kvzDtyMslb7qhk49otthX9vfMPsj/AIcXeGQ2+FZ6j9nbtxpVOFIvdqciqTkOI4CAU1tMmy76VBZR1P8AJuuOe46Ki6KNffpsH0opV+5MPW9/1pwrqtR66xeoMWcQXV8zko48X8xcnkwbuNShD/0gFWTy/ufDu7Bk5mWHfa9kYCnAiL0Kp/UR3ITKggjJB1iMH+HE3/V/vO3b9OsXkl/zEas3EsnARPAEMQ6qnZUxHqqdX2k5RE+PK9JfpY31iEl8QHWEdsR0XMhB9xl5T298At8+59x25vr62Iqxi6D3t5CQQsm50I0+OzOqSMR274jAI+AQMyW24/h2Dr1b/wCpHqsI4SkCyKrbPaCHRTEFPzjGyXK81ypoCVPAkeKcAX39CTkNbJsf0s7Lt83n7l1RuW4szIXVKcEDgKSSqzSSThVYnv8Aym9h3/Oi799eO+3I3i2ToLb6TYISbct6s3UJIwC9WpUokgfKi0vbsG/FtXpg/DH9I/pRs4mU4Ng83LdxIQokXczc60/xhl8I+qir9KJRoGNYxKISMDmYtjtJMcadcYdkOMErep66a6D6a6UQfwqj/PA4m5Zfz7TD/wA2FjjJGVJhiiyvZs5Oav8AX/jj4jeI8clTf96EG1SHLbNtMRobc4ByFnUSS2raghSEuWZ41ZVZUVgCLA9bjqI9NNNf4XZBJQRCJEXqhEoipceEIkE1FFXhFJAJUTyglxwo/t3P+n/7/wDdjr9GMjkSFyORUBmAz3IUsoJA9gWUE9iw99Qgb9SG9dLQ355D6f8ANr/IGls5lE9i2D5nAoAr3oMOdj0OzamMXV3NnshMYZyGRBixFZsXzrYlT1psjn1OqfxzdIoZjNs9qacGRoTWq2VhCFFeBJA4kmd15BZ2REw5ZUjxFM8djn8I/DvcN02xNq8U+nNs2pxTr7mm9dSdPWd0e1HasVd1sUngk2/ba9WVq8ku0xWp5+dKNLlm6G3HaKl/d+1W+dTurAx6ZXYduBT/AM9iXL7si3xG8h0dRKpLWwqZVZOv5sGFBOeb9a8rIRUfZIlFgnhkIrWstt+7R7gkLpWuRecspJlrTLFG8UjxvG0zIqF8o2AuR8Ehu2o3618N7vRNrda1vqDpa/8Awyfb40iob9ttjcr8G5Ual6C7W2utZs2lqiK5HzafynADSLG0YLD/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAIDAQEBAQEAAAAAAAAAAAcIBQYJCgEDAgT/xAA0EAACAgEEAgEDAwMDAgcAAAACAwEEBQAGERIHEyEIFCIVMTIJFiNBUWEkkTNSY4GhsfD/xAAdAQEAAgMBAQEBAAAAAAAAAAAABwgFBgkEAQID/8QAOREAAgIBAwMDAgUCBAQHAAAAAQIDBBEABRIGEyEHIjEIFBUjMkFRYYEXQnGRFlJisTM0Q3KSofD/2gAMAwEAAhEDEQA/APfxpppppppppppppppr4fg4/jTUMX/If9rbwyeFykw2g5631ymRBqYfVQ4hUXAwwY7lMrOZKCiYE4541XfqL1oqdB+oF/pjfwJNvs9m5WmTis9UWK0UnBchFkQgFijFnJzxcKCBve39IS73scW5UMizHyjkQgmNxHIyAtgsUY/AYDj49wyNSpi8vjszWG1jrS7Kp/lIT+Sy/wDIwJ4MDj/WCiOf3HmPnU27D1HsvU1FNw2Tca+41iQrvA6s8TkZ7c8YPKJ1B8q4GcEqSPOtPuUbe3zGvcgeCUDOGHtYZI5I3w6kjwR/fB8ayes5ryaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaapT9QMxO7xlAFOQq1MPbQkT6xbr3Cs07EwHxJnVOso56cz6zLtHWOR5p/WJR73WtOxQhkn36jS2e7UppLwW/Uu/d7XYlaLwZ3oSxQy9tGAMLSlgQpxYj0jl47RLHKyrSsWbsMzsrM0E0CQ2Ifd5VEmDyA5GOQVh5Jzq2xd35fb+WyAldP1Y9WOOQSXMObk45BJjPIkEDBsMWciCknPAkPOo69HutOo+hL28Kl+xNPtq7XPYr1SWity7ujPBVZH5RhF4yyuGHGKtXkPtdc6z/Vew7fu1KoxqoJLklyNXkGDGKf65QQ2eWCgUpjm7ge4ZXVvNs+QMdmAQi8aqVxoxKpkuK7+ZmI6mUzCmFEdoWRSPExAnMzA66NdD+qG29Sbftrbm0G17huRlWojuft7nZPueJySI5GGWMTvxODwc/GoA3rpm3tss5rrJZrwce6VUmSHln9SgDmijAMij5yWVdSFExMcx8xOpXByM/z51q+vummmmmmmmmmmmmmmmmmmmmmmv81xLLFSyhLzqtchqlWlQMsrMMCFdhcHEhJpOYYImJAUj1KJiZjX8LMby154o5mrySRSJHOgBeCR1KpMoYFWaNiHCsCrFeLKQSD+kYK6MUEgVlYxkkBwCCUJGCA3wSPIzrm9uP6p/JnjTd1zae7f0G9Yx2RZjWfe0V1LFkwiWpKuyq2tFj7upEXK/qAiNJ94HgJiOZ++/VZ6wenXXW8dHdT7XtO9QbDuwp7jdbbmqyx1JW5VJO7TkjjxcrGOerYZOEgfI8L4n+l6d9Hb7tlK/R3CfbpdziZqVd7aMZpkVRLBHHOC7SRu3bdEYnIOBga2al9bjK70Iy+0KDVWoM6dvHZZ6lWUqifZIw9Fvo9U9QdXYYMURjJf4yAylCz9Z+2bVVa3uXTcFisYZJq9jb9ydIpo40MjBu7DIYpo+UaSwvl1d8jKMrHw/wCDE9hglTdWRwVWSOzWBdHY4GOEiBo85xIMBsEAAg40zyP5ex/kq9G4cDjm0Gown6W37hqLTUuh1k4sVmLgBBi02DNZsHtDFj1Ht1mKqetXrxT9W7Q6p6L2S9tlqj06+wW57X296xUsSzWJIbFNoCgDpBbkngkdMrJEOK8sMsl9D9DWulIztu624J1m3L7yMRCSKOWJUiQxzK+eStLGqMobjxYsSBlTGeP3AbKmRMPYpvTHSyGHIlYOuuKctJpTzCwQbHNieZ6nIDzEzMQHtXVFr8O3WGNbdeVq20NcdmMct+ajH+GtK05y0UX2sktmyjPzAd0TIOpHubPElmmzCN4u5cEfEBlgWVhOoKeQHMqrEmAAeIZiPg7tjN15eOZW44p06xWnmEmQKQmAkkJiIgrDpgoNk8emuqBgiI+0BI2x9UdX2YoWnsS1tk2ujPetWavfKV6NVYpZKNNMo929LlZ7U/8A5apXHBmlsckj1jcNk2zm6mFHt2ZY4YFk4KZZJC4SWRyCIYlPtjUZeZ88VCEE2R8beZ7joRTvKY2vMFKVPYTHgoZiZFbimT5FcwUrKJUMl1jp8TFu/R/6ltwRaW17zUsSbfJGxp1rcjybgkSEsq155fzHdKxSV45A0SLgYjAyYd6z9Nq8PdtVJljnDATOiBYGcgeWiT2qHdSoZct4LYYkg2pxeXo5dEPpuE/xGWKL8HKkv2hi5nmP9oKOwFMT1Io1fHYOods6koQ7htk4lilRXKMpjmhLDPCaJvcrDyOQJRseD+2oNuUrFGZobCcWBIDDyjgHGUYeCP8A7HwQDrJ6zmvLppppppppppppppprCbl3Dido7dz26s9aijg9tYbJ5/M3JW132mKw9J2QyFn0oBj3SipXayEpA2tkYWsSMhifHuF6vtlG3uNyQQ1KNae5alYEiOvWjaWZ8L5JWNWIUZLEYAydP4H8+Nec7f8A/Vz82b83nk6niNezfG2xfuG18G3OYytnd2ZCkhpSnLWcjnGV8Fj7GTrmDf0NmMGaUjNWMuVmJcdEupPqY6xv7vNX6ah27Y9pZmSrLYpre3CREZmWaSW40NWKaxEA4pmIiMrwFkyZYAC3hck+c+M48Z/nHgEE5xj/ADAftz3+oL6qfLPnXdb8F5Wz+3LGd2eO2P7b3zsmljsPkcuDctXyeNtZari2TVrboqLi7iWqCtVFdH2Y+xAMHvZhPr/qTfOsprd/fdt2vc9yNCnTubrT2+vTnvbdFI8tKW8VUhpqIlkhRhGO0jAMpKxyN7Vv3oUrQrPLHBTkltVQsj8a9hjC0skRDfluzRq7MmPIJ8kknW9peXvPW7NyZKjT33kLHrytvJFiMZXpXMVik112a0CVGjhL8+lSbSFmU+w71yJYN+KqEujRq3Q/T8+2NUs1Xfb7nGeeOzYtdmy4Dl5FdkEgaQMyNFDJGoUMjAIX1JMfWfXNq8J62735bMEBRUowxOsMftUk1oYnRVyf1zBsOSCe4obXTP6dN1eQMxtvL/3rSq1RTerJxGVr2FodnEKQ4yfkcREyzEZJEDIWkQ19Z8ep65rk2a69b270yp9KLuh2rcIv+G95uVpKUD7pXtTwX6az/cwzOkrMsLxSqYYpM8FjaN5HJUrN3SfWu5dRwRxb1RlTd9rDJLO1KSqlynYZVjkETIFE0MkWJ2U4m7gcAe7Vm695RrlZxEvCIKYYPcGBA8dDiOsHBc/jHxHxEzzxET+956Tr2KJccI56/KR3ZFaCxEqY7ciq4WbknlQPI44wca3uCy4lB93CTKhQ/BlZiPcpYHhj5yAfHL4OTr8NoWq5nfhbiovdysGlLDUCxkp4InNmSEgkigZMVxxAzBRE60PoB6UVfcaNO1LtdiZjXW2FmuR10Ri+Slu0xkjkQEsrSRwrjttyTkFynUEMrGrI8a2o4veY1KxyMzYUN+XFnIYD3KrOWAfOScTV4yqXbecW1okyOOkWG5akx3rg4mOleusK6FSQjJrURGZR3NxmHxJ3ppte5Xuqa4sbdJadpHhj3fcOqtmlv/aFyfyNtpRQ0tuou8SEU6zvO3FnmmldUB0Dq+xBX2t+2wUZPKCOhZSISHwwaeZ3lmmCtjkwCDICoA2WuvtHc+GwQWRyQXVOewVrcuob641UxMLn2q5OJYcmw5lYDH4THPPOupfpFtcmz7BNPdies1+1IasTK7D7Cr+VXmLjOWtESTjIH5Zjb/NqrXU5Nq6qQvFIsEQMnFwGNiU83QITn8scU+Tgg5P7CWcbnsPmI5xuQrWp45kAPhsf78qPqyOP2mevHMT8/E6l9JEkGUdWHzlSD/vj4/0PnWpvG8bcZEZG/hhjwc4/p5xrL6/evxpppppppppppprAbq2tt/e23cztLdWKqZzbe4cfYxObw98CbSyeMtj67dG2sTCWV7CuVtX2iDCZEuRmYny3qVTcqlihegitU7cLwWa8y84poZBxkikXI5I48MM+R86Dxrl1l/pY8YfT5uaMsvxd4uz+JvDar4DLZDblIM9jMaiw18Yvvax1yi5lZdz1TZMJu2krUVi6cfiuM6/p30f0262IendlsRryETW6MMs8Cgk4Ek0bo2EYqGZTMVXHNiTna6Pb3Je1Xj+1mSJUk7MSYZScBQ6kS8GJbkGPuZiDknI4g/U99L3lXPeYd1bm+nGn4h2vs/cSJR/aFLdmB/V6TraEJzHqtbugpwiCt0Qv4nG4Rql4yzkcoqv6EikZqf1/6Z7nuW5b3J0vS6QrbXfvRT161TfVS7WSKI156sRvSLHXhtSM1iWugMaOVjiAVMDaaG1pCshnWAWFaP7d7FD81EAkDlgU7Ykb2ESJEfHEqVZCTfn+mx4t8mbOob4sects4yhnqN3aCMfZxqcI5XkfEVv1UreHu3sK0KtdmOE0FDbthlOxZZTNzImHWF616Lel+7+n+8dVw9RdGT9QbJ1BJstujslizX32Kpcqy3vxT8NeS8YaP3KWYpSxZYXdDF+WvuTa9z3W7coUGjNba92pvdhsdQ7ekVCWenNDAKr344Ile29WVGjZkUu0bCQBplYSSPv7ZmSy+4d0WauKLbzXXrTq6X41jMMBuszKArso3IdBKUQJcYOJbDURBMwQzOmeofpRJ1Hu3U9raujNz6bhWcy7XW3DbJAimXtLwWejZkljDMZSVaWVRGoMYT51OHS3V0O2bVs0O47tU3ucxhblmtdRLGFEhDyCxGkchAC4DIrhmw/kHHyhsrcFCqluNtZmGBVYZQnEG6k256u0Sg7WelI1iaqRNVta2zBoiHgRMkfPtH0/nuUK1a315tK2oDHbkFZLG2d3iodwbUuftQysxE0QnKdoLJzZs+TePUeJK96aTbdnuvCxeGJbJSy8YdisRjjhQixwKkPFIYC3dLe0Z1vu4Ns5nabcbTqKRuBWYxk279etV4rqOZX2ibJWEMRYdLDka6gb64/KLRjJLnxeon0+9Rene3bVF0fVvdfne571fddso7X269agYFY2bNppa0sEs7SyRpBXcvGCWExyVPm6V9QNu6onvHdVXpv7BK81K3YtqzTTNKVEKQqJUkEKxiR5HAUkACNSQdbDtS9uvEWEMxm1rNdK5HhT7i1CI/EGIvtkXsGf3mDaETHMQQz+UYX099K/Vjbuotr3CD0+l6f2unPCTVu7rGM1lZDIpk3G0sgDY4GMOx4EhXyfPr6j3fpK/TsR2epIrc8qtiWvUmc8h+k9utEEGM+MD54+3GrhK3Xka2FRls7jMdQqviYrTYylSpNqVzAMmoh7pO0CimAOU+0hKJjgi+J6t7fvU60K825Q7fQRolSNYriNCSgC8IVwzGOP/wAMEM2AMZPjVS7Ozwm9NBRnuW2WT3lqzl1VskGQqAFdwM+7GQQc/IGb2IGS3lnot4tasRQxv2lu5keLTHvgn9l1awwFZUscCS/yNmfSqTIllJCM52pMlpmevhUCoWcI68ufkcchQcgHBI+CD5GNYq9GKsfGctJI3MJGSmFxn3Mcs/tGPaoALjiMDVqNZXWC0000000000000001Wb6u8J+r+Ct4PTXh1/CLp5igwCYq1XdXtKS1lWwgl2EtOu9i5lTBkwKQKCGZidX6zBHTe5yqivJXrmxHy5Di0ZHuDIQ6kAk8lOQMn9tbJ0kWO/UYldkM7tD7cHkSrMqlWyrBivEAg5JAwTjXl73XnNxWNwm/JMpZfHQ9k+nPUK+WP0BJ8j9y+t2VLIE5riwmNgw7FPPJzz06tmtS7hPJWtWq7zqZJYjYaWNpEHIgd6KYMB8k8cgN+rJBNqdnnhMaV7tKlbjVwrtJViMnAuWDKydtiVHgMT5xg4xq2G2tz4nZtSmpW263r9VfL/a/Z7gxiTrCAuk4tYHJixVdouGZtJRAwuA6mAhADXLdfUqTpiaS/uypaeSyjOln8UgaZKjYNf7na7daWAOp45iWMt8FvaBqa6HSla3VEO13BThkTtxiA7XMkc06+Cle/VmjeVSMJG7uOXLIIIzn73mavdaa6mLCpWM5tgpG7N2WSSwjkjhVi9Rl5AUkIwD22CXA8CX5SWsDs3q/L1LdtwbLb3Xbhx+4atU6j6jlSvC8wGFO4r3HTJVEH3BlVSc8lLZ9s3QL044nuvBalGImkl2LZ4TIFUrydKriMP4LOVRVLHkVAwNYSp5CyFvIqoszDyFzycGPjP7gR9x7AhYIhicd7VoSUe0lw5ajKOOsBBkUt0fUTqSCnGG3K/HXqnzy3bcQ0gZOI5uFkdiXBcYJ8tgDAxrD2ektqJK/h9ZpHQfmfh1I8eDB2kHOVVPIZRjkYwSceRqQa+7N2Kpst18DafVA/UxLc7mTZ6+D4sBGQ79a5fjJKqmTO/LHAMccZqf1F6mubTDJFUtyw1pJi5O67jNK6SKvKZpJpUlMLcQCseD8MoUA4w0XS2wruskclitG08UPCQbfRSFZIywWBUhUr3cMWMjEqfjnnGcjT8l5LHwi2zb+PNrDKFkdezlGCQDEzB/cPXW5/OJiTke0/t+08RvuvrXU6akr29026lLLPYKRTWYrF2QyQqJGU927HCOIcHkRkn/Tzs3+HVS6rwR37aIEDFIDXqoUbIJBSJnAIGTjyMfHwNbLkPK2+Ay2Mw9awREx0C6xSdTq1KaGIiyXSVUGWD9RMBXoU6r1sQRQw5GGzuEX1NdZy79T6bpAtXqQ1+9eotQqU6sVmBJ0hUx1JrtiSESJyhM0KK+V5yYzrXYfSvpN6VndJaxJkLskVz7iaaVoZGj5lTOsC8+LMHMblkJ8DJx1m+luvZjxTj8he6su5bJ5S06xwcseCXxUSTGNNjWyMIOIJjDn5njjmY10p9F7t7c+gdp3TcG52b8tyw7kuzMgmaGIvJI7yOxVCWLsSWYkALgapX6pRVa/WO4VKY4V6kVWGOMBFRC0KyyBEjREReTjAVRgAZyfJsZqWNR3pppppppppppppppqO/LeFXuHxnvnEsNi/uds5Y1mqIlgvp1TvVpGJ+J4sVVdhn4IeRmY51geqKwudOb3WLMvc2u7hkAL8kgeRQoJUElkAwSAR4JxrNdN2jS3/ZrICnt7jUDBs8eEkyxPnHkYR2OQcg+QQRrzyjtfx9azjtwZKobUNGmcUPVaOqi60im7bGjEPWdq0E+oCUuekyZLGBMhjlP1xvjzBXq3ZYq6sYpSteUSe5T+XK6CRvBBw6EY+GzxGr5UOnWhn7i04WmlDEsxiaNMMWV4jIyAAkhirjGT58nW657yv4329jUBgsEbaNasC4TOBTkqwVj7jMoVZSJ9EmJ+ySGTJsMKQ5nmaxda0bjQw2o6d/cu3JJ3MQfiSJFIoPIwy/oUOAAWQkMxLY863LadmvTyMlm1FAQ4cGKy9RxJGVIDtCwBLr4HEhQhABGMajbHWdqb5uNyuMxuMxn3VV1cYSg6Nld4Wh1Gzi1xNZTJgBOCBUd4lcScDMkOsensEw6ntyLt70IJqKxNHLTet3XSaJmZiI1jUsoYexvcuSBjW27kLFDbI45b0lpobQYh7AnYRGM+BIzGdsMxUhmJXllSoGNSPhduYbC+lyqq7TRYyLFliFw4WTHM+uTWwEj6vmIGSD/IUF3kudWs2yhUQRvwWQKCH5YbDKeR4hiyr7eJ5FSQcZPzqONwt2bMjcnaMFFVACSpXHHBwVf9X9QTjIOCQd3xp1zI4kF+uRiYBhlBwHJEcjIjMM9a4KICZiCIo/kP4xuG2vGjlY0iaIgL23PAheR58ccs8R4Kv88gx+fOBswv7TyfPI5ZQPBwAB58jyfDDJwpB8nOtP3XhFszuKOoxSKxVYO1FeeTEyaR9wSMAPssLlQMmRmR9czBFH4zWn1y9OKXUnUW2OipXpRVY5pnrz4YWGnLzRiupABnjCqz9s4IBVjgKZC6O3u5BQuJIDK/caOEzAkMqqoAd8cisZBKKCAwfDjIGs3Qxozcon6yWASRdpieOvWIIo6iUz1IZKf4yUf6ccTOT6N6dp17tWvSRIgjL7QSW/5GZ/BZiPnLHOMYz+zdtzc1rRZuZ+eOcnkCfYPOQrAgAYGD4yM67j+KMInb3jjZuKR26qwNGwcn/OX5Bf6hZmeP2iX2mdY/0DrHzxrtp0HtUey9HdN7bFnjX2inktjkZJoVsSscADJklbx/AAPkHXNjqy/JufUu93ZMcpdytKAM4CQyGCMDJJ/RGpPnySSPB1IWtt1r2mmmmmmmmmmmmmmmv8GVrfe42/T45+7pW6vHx8/c12J4+fjiZZxPPxx+/wAa89qMTVrERJAkgmjyME/mRsnwfBPu8A+M6/rBJ2ZoZR/6csb/APwdW/t8fP7DOvN1druxm4H0EwR1k5FYgRhMCpla0xckcDK/4SBgJdo5jiIHie0cduqLNerNuNew/Ylq3pK5iC8WmLWpI1K4yCTy8kgBRkE4IB6dbYPu6FWyEyZqfcJ8H2mJGAOQTggKwAwMA+T8ahjf+EIIvikSOG5RsgccmRe1jJKe0EsYAe4dFFzAF3KZkZnirnqZuDR7XYkikmiNfdYOUiu8alFeRCGZGBKlmBAzggrgfGN22ZkMqCQqAKoOCMAAcWBAIPk+4clGWGB5xjW87Jx5Y8cXTBaE++nMSZfbHIPJiFKZYOINjCKuPfkWkK7DCJs9BHt/T0u3WO5fqm3alnB295ZFaSy/cLsjMyLJIVXsylQpZQwQBVOSAcf1BXk/DZJIUC8nbhjiHwFwAOWHKuq5IPHLMc/pI1r27PNO1tj5LLY3ce6qiLmEvNRbpJbFrI1nVqkJsJahaiGbcKe4xmy6vX7zUmG/yMbg9MbLu29QxHbtksywW1zHYeuYarpyK8455GVe0SvwDkEZx4PGJd33nZ9tHK5uteN6/wAwRzGSwhbDhXiiTmJEx55Y8MM4znUdVPrGw+SupxOxcBund+WNSpenE4u/mLgHK2yahqbdxWfsAxEStfW5VrewZkhGYDkpU2/0r3uUuPxXbdvkkUCNYYrFuSE8MEMY4u2xGSDwfByfkkYj+36o7LGoWPaNy3IRMykflwLIQ+QeIeWRRgkqrAlf6j5ym0/qn23c3wW3d3YLNbZzq7aqGQp7gm+rI4+24YNS71DL4Tb9lL5W0WBWStlmEypgoNMc689n0M3lhOaG6bRum4TRtG6X1t1JDJhgZBJKkqqQXUZYDBAA8683+OuwVwkG47Puu0wxsqq0LQzgcgCsbRlYXy+By9x5AkhcZI6b0HbTyOwa+Vx1qsz23qyEm0kTcG6bPsm0LSwMvVaAWERVvZ3iOjxGANZTH2xdIp0zu27bPuyRR7rtu41YgxOe/K8qRl4ZHjQSQyo7pCYyQ3bZlHg6y1XqpuphW3Xbmlk263WsOU4heyI1aQiVFdhHNHIgLqx5IrBWJ8jXYvD1/tMVjavHEVqFOvEftxCKyk8RHxx/D9uI4/211ZoxCGnUhGAIa1eIYGMduGNcY/YjGMH4xj9tUtsS9+xYmznuzzPn/wB0rtn++c/31ktevX8dNNNNNNNNNNNNNNNfyfPX4/fkf/go/wD3/Ovh+PP8r/3GvhJAOPnB/wCx154fKWPnHb/3liCEQ/Tt1Z+isi+IiFZe6QxPHAxMDMdeJiI/lPxrjF6rQtB1d1VWZW7tLftzrtkf5kuTNEVz4UhArYH9SAR51026Hm7/AEzsFxclbWy7dNn5BDVYVceR4ywYfP8AfONR/nMM3KZNrFLSpIAhrarnE0CZ9uBSwliEDBGXx0iT7RPeZKJ1Wvq5ldLFeyiyhsPIrIODsroQwGOROMkjzjIwfOdblRkEcSyKxyGaJOKqJCocrgnJ9uPKsD4HEniQRqGfPW8q/iTx7d3E4vRlcuo8Nt8qMzWbSutpMtHkAsKlY14xdSub6qq4A51yaVXsENNytp9F+lo956xrRwVVirVKbW9xkkBdGpxzQgVxH4Vmsy9uL3+FjLvnK4Ol+onVr7H03ORNN3rEstCsAwVlnkjlzYLEs35KcpOWctKFC8QSTw7z/kWdw72Rm9ySWUbdy6rmZPKWLhrtVCyAOuhcs1z/AFFs21E+b9pDSuO9psUw7MhOuk2wQGGBYYRHXrQKI4IYkVVhTBHt44VVGTgKCfnxk6p5JbexMZ7RMzPJylMpZiwZssHKkOWKkhyDyIJwcgYuBvRG7edt5PwtuH9fwt4kXG4TYOdvIxe0MgGTIqm2cttqojb9c8QyqNa2rM5WhYp36bXnksq013mxvSWHgeIQsZQwUMYmJCEfCuoxj5/UcjB9zfuPPukbSgNVkUQ+5ild+JjbOAnHiuUxgc+LZXOTyLa2bzP5g3lm8ztDAXF4ltdWF2bb3Vm8ZiaWGp7339t7H5iplNx7bpoWLi29jQy5bcXuAZGhuCcMk6Vq1jk1IPd6s8TKJDwOQhZuOC7iPhI0ecMQwOOZOHKBh+nUddUJcuvHXdw6LHF3SAqrLPGznlw8ZVEbt/ODxIVsavN9DG49y71p7d27lLbrGNXvzA4zELY+WC5djJrqWThXMlAxNaumYbzMtUwg9aWCsK3epO01bPqZ0CkBZZtzkpwWYuTMkscO8xxVpmyGDSFGkhLfIEQHjONTz6QSSbd6edamUK0ND7p61pgok7ku0yS2IsjyqqyRkD/rbAyTr1ejHEcf8l/9zroEBjx+2fH9B/Gqx4A+Bj/98/31919000000000000000018n9p/wCPn/t86+H48/t5/wBvOg8kD+dcFfqMsI25528pobHqU/P3LUnFcXlC7qkXmAIEQyoXRZgWWB4MRiSGeC7Rx99e68+3erfXKKGFefeJJ5FIACrZSOzGynz4/NZiR7sPgnHjXRz0rU7p6b9IuBzkhoRQg93thmryy11LeDz7bR8ljPtLA8s4GoPxWZqPtPsL6GqVrXHBkQ9A9nsCImOIiFyIxMx2ngZiYLmJqx1oyRyIHZCWic+1lY8SQFyR5UAccBiSB4BHwZWWjJFCqYZAr/OFA7hweWR55F8/wpJJwfjVIvqwyG4txtPxY3b2Mp47EVw3vW3Nc3IisORxToZtyyual7CuXjjxmSyCgyDpuNUuuytcloqg4TO/097LQEU/U1fcLE11Ypdkt7cK4VazPLHYjmMiyn7hZYowY+SR8GVx5KnlAHq7dv3LKbC1GBafCPd4dwkthO/Fh6sqMGgZYHrzyASEyEFeLk8WYrQZHiGpjHNzVnFUrpY2rkb9X7XcmabZtfpu3dvbphVdFfBFXN17CbkVYp1mxBGNK/JqhIJa2323W2UZQuPbyIA4khSwIHDl7sr+xA/r+4hF9p+2jMn5bMokccJpGLBa8FkcSI0GGinUjx8o+fAzqeMJlquy721KmLw+0YjdL9vps52F5C7Vo47OZ25ijr5DKL3RignN4uarLeTofZCij3JLbc9PczbK98xGAJDEzT8Q8uZGwhfByQ6KzIByIKqAf8xOsNaRkTKrGObIO4rDiA8jL7izqSwGCwPgDyTjyJKwWK2dmNxvs7iu7WsPsXby71ultLEbvzaVK3Bk9vVpybc9b3PnCtVsNXxu87PNv0foV1eIoAd6QJW47TMkjh5mi5M5BAhMrgGV41XEjyMWVQkrecFTwXByNazuMEacw3accnBZePgq/HkD7y2R7gFJAHwPJ1f36F9iOp+ZNgOoZeL+137w2emrQr4/9Iopynrym58haXjF4PEV1sEcedcYXNol1Pt7Nj7W1fdVVq2+ipuHqV6XU661Z5ot579i1EIjYSGCQzLVYogMUXOGSd4mCkv7yATgbp0i8tPoX1KmaWysZ2mKKCq3NKzTWvyJLQVkRWl4PHGrqW4R+0t7uI9OUft8f6/P/fVwB/rn5P8AvqBdNfdNNNNNNNNNNNNNNNNfJ+YmP94nQ/B0+NcGvrapwj6i96KiePZU2xkIifiGffYOnHIRxHPBqMZme0yQFEczwMcuPqk2/wC39R+onjXi1yDarpAHmRX26GPkD+/vjYE+DkMuuhn0+WxJ6dbLzJPZs7tU/niYr0sqqfHj2yAhT8HH9dVbuKbjK8Wa6p6+timJPlbAYcTByQjPaevzEwyA7zMiQjMTOqS9S0Y7CgSDi/bPE+0kArkZ8kf2HlT8g41PkB+58ByV5RyI6AsjIpBAJYDHIecjOAfn41h94eLdi+V7GCzO58Tey8IwFvAtSOYytCo6lauqs36OSqY23XXeWdquk2Lt+0eFrGBGeI1/Ho3rbqbogWaOzW4q8e4PFamketBYZ5IlaFDFJMGMfEEhgP1HyQcZ1pPUfR+x9QzmbeazzyVIpqsCC1NWiNaw6zOkkMboJRIwU4bC8RxIPk6qx5F+j+8zIZHLePt0YjB0g7PxGAv0vu21FAkV+mctmQyoGtATFWuxwrldP7Wm56hGW6st0Z6+xxwUqnUu13rNlSYbW7URXZZHMmI5jQwgVyhUOscoDMrmNPIUQ7v/AKPTTzWZuntxpV4yWkrbdYV2kijSMK0f3TiQkL5RWZSscPGM+BnURB4U80LADxuA/TwU3s7KLz2IxmPOqMHNlhWsJt+jXULhGWOsf3EwEogf83VUnFiKHqh0HYWJa++uJJMYqnbbYtdxwAUEH2eS5OFVPOSQCce7UY3fTnraFXJ2chUBZrI3GkldlQjm3cjdF4N59wb9Pxk+dWa8c+ELAZSvkvIOday3Tr1gq7Zx+7cndrNOzM2kNutu5jJj9yQWEKUulYtQSvtmJZViYh+L6n9XbVJTU6Xp2yjwu7bzuFWQRIAHRxWqpIArxjJ71rgqMAyxMVyM30/6R1bzpa6p3GCN1mRE2qhc5O7MAUNqeTlyVx5WOtzLKfdImQD1L+lXMZ/dP1D+M8XkFzGJwI7my9eOJNaW0NsXq6BE5/ERFbRAR/eJOS5komZxH03Qpc9S9mYztNKsm57jMJXMjl4dvsjmzPli/OXJZjyBJIxk62n1or1dr9Pt4NdO28w2uggUcVKNfgYqqjAUcIvKjACqB8jz3Aj4iI/2iNdMx4A/01RnX3X3TTTTTTTTTTTTTTTTTTTXBX+pLSu7X+orC5uhUa6nvDx7g7GR/M5Fl/C5XK4kiXBnALldJONA115DtE+yYljCOecP1iV4tv6x268ZO0267BA55c3R3pWLFZgADlQIzGcLxQtkt7m830+l2yNw6G3GnIwJ2nqKysWAqlI7tSCxluIBYGTu4Lh8eB8ADVLZ3Kx2MNQzMsKWdYkPmCZJFMEYjLZgSmeOZKJghiPyiNUK6jswmpylbxXWVwAqIeDjLMWAU+AM+4kgZC+T5tJUrNHMHUKY+KhsNhcIAMhWPBRjPvOPA8eNa7jN9bgrwzH02R9g1gGdZgr7QyQEZbHUFyYFEQEMKYYw5hhyTOxaiGv1APv46/bVo8T8GYFwTgHEb/IIILsMEfIHk5Psm2WnJIZJF5ScWzJGzFCoYntgsxGVJDHAwqjgMLr9chTjdkdsjaySRmF1LKqWQioqyFc2vWpoiBugYKw32QtgKf2WbAY2tXNUvdH7taiQSxx1pMyySxCWHuGJikSsyryRCeKIVdlLLlwCAzBte3bp2jJJyJmjJgWNu07RlkEkrAdziSAebBlRlDHHMHCkZzC7B29UVCaab8rbVfQXRHJWiqJq2QrKsQmsvqpEiNRcrnpEL5dPUgbIRM1Ledztdl+Vcz92GbMdWPmZIWd1ZpSSWJDkOCeLKB+4OtLm6e2yIyKfuRGIpY2ja1IIu3MiIY0jHFcYUFeOcHz/ANOpQx+K26NtDkVKjruMqro1bbyY+4oakhETDWmRwz2KEpZPYzJcmfBkRF+t76ivSzW6tawxphXFlY+EcMs7h2n9ipyKhmOFU+3JCgBcD+NTpylEa1iSmpmTtrBJLl5Io0UCLi7tnPADLfqY+X5ZOOkP0X7cD+/U5L0jLaO1c1aJ0jHbvcfjqK4iZjmY6MdEzH+sEMRxzEzh9G1WW36h7hekBZYOn90lRmDD2vaqVA6k4whaSRA2MEq2PGCYJ+o6+E6agpoQBLvNKHiGHjsV7MzDAJy36GY5I/SfHnXUzXTvVLNNNNNNNNNNNNNNNNNNNNNNcoP6me1rs1Nhb3ih95jaNTN4K2YQcnUtm+vk6TCkI5mGoC56xj4mUsiZjiOefP107Feah0V1JAhNWvNd2a1Mo5CF5ytuukoPwkyJOqsSBzTHgsoNu/pX3eCOx1NsRlMdmdqG6QxsVxLFF3K1nGf+VpIARkHi+fhTrkzFcCwVZqCXXfNYiKe0FYCIIXkRlH4zCi7FEB1Mv4THrLiKE9S9OG9sE09ZUlDbbakYEkN7YGOCRkFc4AGeY8t4PzcPbdwk+9dZlYhnK8eXsywKBf2yzqQPOVAyynmoJj/GDSs2jUMxDFrcMSHy5rADqLpg4Zwt0z3JYTECU9VkHWJmGul6tXdpqhREFyAOj1/GQACrMoUAvgDAcgk5JfOfO62XkWJZF5EcgzEleMY58ig4ke5F9oZssy+HV8ldbZWoWICTQfU/5cTBf5Cln/HHWIHmfyjjtESPMzMRK9OnJtxJSExiQjuAZWMlR5ZFxxHggMFAz4z8DWLmnWRh3GLLkgY4+AFyAAAQTyxkjzx8EeM6y/61cpUyWs+tqZkCOZ/JQzBDMh8dvmCk5gZ4nmeY7xzGXj6gtQKatNSrOSO4w8Rg+WC5Hlic4GTjx8gEa8v4TDYk7sq5jUYCZzzIPLi3geAcAEjPnx4Gv423lL1TIg+YKysTEyk4iIaMT8l8TPEfHMSRTPPM8zPE6z1SCSxUkQBlLRsWck5yw9zOzHyWP7t4H7nB157yQ9v57eQOKgnIYfA+D8fwM4/bGu4X0PBOcp5zdtRMqxdbG1NsrMo/8TJfcxk7qlzEfkNWsVLsX8SKyHElxzF3fou2G5z6r6jkjIo1qtXpqvMeJSe2bB3G6sDKSrJWj+2D/t3JSBnBOqJ/Ujdjr3Np2QvysyTT71IoyGSBolp1mkU5w0zLOQM5VYhkZbGuger8aq9pppppppppppppppppppppqiv9RHbtvN/TlkshQsRWtbV3TtvOicMJTGJc+xgnIUYkEyw4zAkK+4w319J55iNVs+q3Zn3b0g3aaNVZtn3DbN0dTjLQpM1aYKCMM/GwpUZ8lceDg6nT6ddyjoeptCCZS0e67bue3448gshiS3E7+DhA1UqTg4LA+ACR5y8aOVe7ItZbtgFY+XFXMZUMfs0XJMJGZkpkDmQCY+YKJ/eeT3TtKtui7nH+LbhUtRyBI6UVmILLFJGOSyUpo5e4sqgqW48cDB+TrpC3bArlIIXVh5do2GGQkrxYFSCAAf3xkkeNZjGIrXme2jYUqyhkxDBQPcuJmCiShgAQfv2gQiJLnmOYnWqVdp2mrvdpdlt04NypPLE7Nt8aux8iUxrFPBE/EHhIVjwGBx7RnWWkE0VdRLETBKAT7m+SQfdhTxJOCDkA/wDfeK9jKqGBmzWOR54kqsT8TM/+rMfPHzEcf+3+m5JV6plULHue1HJyry7KXK+PkD7srn9s4xjx4+dYuT7DyDFMCBhgtkoPH8jgcn+4I/f+dYRVPJ2r5ndygysme2F1661CCiOeg8nBflERxMREx+0zMz8a1aWDqSpunYt9QRyxqoldKO11aoIcsxRucckifHyGJIx5/n3GesKo7FZgeBUdyZmPtUDPgjzgZzlWJPnxqY7m18Ni9j43cQ5KzN27es0pp2bSACJSvsDEoBSWFEnMARlBhBSMdhmeIk29sVGv0ht2+Hd7U1q5dlpvUs2EWMdtCwkihVUc5bCdw8kBGPB8DR4d1t2N+t7cakQhr1orC2I4ZGc9xuLK0jMygqB4CsGIzkfGe2P0C7ds4T6esPkbMxJbtz+f3GuOC5Ct7q+FqxMlEc9lYeWx15GIZ8EU8zPTL6T9lfavSDa7T8Qd93TdN3jCnwtfurt8IxnBLCkZCR5PcGSfGqBfUPuS3/U7coEBA2iht+1uSACZ0iNuY4ySAHt8MMA2UJIGcaurqy+oP0000000000000000000001o/kjx9tvypsfcvj/d1Z9vb+6cW7F5FdWwVO4oGEDUXKNsIkq1+jaUi5SsdTFVhCyNbA7gWB6m6c2vq3Yd16c3qFrG2bxTlp24o5DFKUfBV4pRkxzRSKkkL4ISRQSrDKnL7Dvm5dM7zt2/bRMINy2u1HaqyMgkTmmQySxtgSQyxs8U0eR3I3Zcg4YcP/Iv9LDzPgLGQPxvuzZ3k7D2TYVZG7W2NmbwrixsnwV6oi9hLb/Ufpa1VjFpsmMNKtWgvWPODq76HepaG4XbnSG5bL1HRnZTSh3WzZ2Pfdu4MHHatwpLTnLHkC4mrKzYbsqMEXc6a+rDp25DVj6q2fdNltxgCxPtCw7jt0xxjIryyQ2Yl8cxGRY4/p7jjyKqH9Fn1sbNdcXf8K5rJVgEox7cBmdp7hMYhgdO5YnNusMH09xjuoGEXWTDmZjUD7n9Mfr5tV6/Yk6J3q0pRvs5Nk3PZtyZJDKn5nc+5Nlw0Ik7isOTO4yBgDUt0vqB9I9zWML1bWq5PuTcaG6UvAU5Vg9XtAc8Hw5UAEA/zj0eA/qkXXczKeCfMSGLmZAMfsjLWzlY89phagYZt7T+Irme/HMc/vHm2L0h9ZpUsV986L9Ua04mCQGrs5VXi4kfqEXBGVhhi0hUghgfldZOX1X9KiwEXW3RzKQSzS7iVwRnGSVIHjwBjJIIyNSftL6TfqSzkIml4S8grNsj3bu6xjtqR88FJujL5GkwRHvAwMwJRAyMRPXicrW+nD1fvsZNp9PusZbNmYh7XVO40drjQA4LSJZsxTBBjKdtApAGBggDF7h65elVIZs9Z7PMixtxi2epdvlh4HEfb1XQMcE4Lec58/OrqbG/p476z2Px1fftnbGxBC57spbxT/7u3Q+hAjxjqLHAGHx5FMM/6h1vJKrmYvCrYIZXqxXR30a9Qbptu2wdd3tq2N4brWL0mzync91nrEALRhncGpWUHkWl7kpRmysTnwYT6m+qLZaFm2/SFDcN2Z64iqNuUSbdt8UuTmzJCjm3MQfHaIiyBx7q5JHWzZ+1MLsbbGC2ht2r9nhNu4ypicbXk5YYVai4WJObMRLrDS7vsOkRlz2sbIxJcR0I2DY9s6Z2XbOn9mrCpte0U4KNGuDntwQIEXk3+Z3IMkjny8jMxwTjVL933W9vu6X953Oc2dw3O3NdtzMMc553LuQo8Kik8UQeEQKo8DWyay+sdr8bM2IQ6aoqKz6megXkYpl0gUK9xLgjhXs6+2QiThfaQiSiIn4c4PHGcHGc4zjxnHnGcZx+2v3H2+5H3u52uad0xBTII+Q7hjDlVLhM8AxClsBiASRSBPn76iMTtjOvzH0+7hzu5lsy9jC/o+KymOxQ1mMbGBq3acTmL1olrGkzKWU26z+mR4ilVPFZeKuqru+8x15TJs0006mUxdqOSOIqQ5iV1buSHHFBIwKtmQYUcJNWLk9MPSm9vW2R7f6q7Rt2yulGPcRuF6nbvmVVhO5TVpgtCrCsha2tKGSGeMPTw88wvUGsTn4p82K8oVMBZRsfe+GVncXncsGVuYG6O16qcRnX4irTZn7isfDslmKy15alXq0bFaKxOSd2XV/82W2/dBfSF1qWolmSaQSNE3YVYpmiUNMwT3zKBKiBSOJYciVyY3629PJOjLG5wS9SdN7hJtlzbKT0a25V23meS/tce4TzR7ZXktcKm2zs+325prMcnfWNxXCTLx//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwAAAQQCAwEBAAAAAAAAAAAAAAcICQoFBgEDBAIL/8QAMxAAAgIBAwMDAwMDAwUBAAAAAQIDBAUGERIAByEIEzEJFCIjQVEVFjJhcZEKQlKBsST/xAAeAQABBAMBAQEAAAAAAAAAAAAABAUGBwMICQIBCv/EAD4RAAIBAwMCBAQEAwUHBQAAAAECAwQFEQASIQYxBxMiQQgUUWEjMnGRCRWBQlJiocEWFySx0eHwM1NjgvH/2gAMAwEAAhEDEQA/AL/HRo0dGjRuP56NGvFayNCkN7dytX/0lmjRjv8Awpbkf/QPXtY5HGUjd89iqkj9wMD9ScaxvNFH+d1X9WAP7Zz/AJawk+sdPwHj96Zj87QQTyD9vh/bCH5/7WPWdaKoIyUC/ZmUH69s5/y9jpMa+myArPIeP/Tjdxz252gH+msdL3Awke/GO7J87H2oYwdiR8yTqR8f+O/8jr18k4/NPTJn6yhj2z2UHPHtn9dexUSucQ0VZKT22wlf3LEYH64/TWCsd2sBWYK6MGY7Ir2a4JO+xGye5tsfB3J/56+fKAcmpix9kkP7cDj6E9+T9NKEiuUgJW11Hpxu3PEMZz39RAHHcn/XRH3WxMxKw1o5SPlVyMBcDfbcoIi4/wDajoEEHINdAG/ukMpx/U/+fvr3JTXaJQ72etCHgOFDIT9Ny5Gcc9/01Dt9S76yVH0iRTdt+zeltP6470+zDLn59RWr1rSXbatciq2aP9boYw465ndR5GjZ+9oYWtlsfUoQrHYzNwPLFjZqA8VfGq19DXD/AGbsPyl+6kCZrEaRlobKWhSeBK4oweaqnjdJEpIZFeKNllmZeI36S/A3/D+vXxN7OtPESvunQnhj50sNr+SWlHUXWk1O1RDVC0yVkc1ParVR1MK09TdKukqJKiR3ioKV1R6qOvmn1kfqY1dd2sple7GmKWa7t6QbD4TT1jt/pRqmhcDYty2sbqjT2DrVFsYzKySPebCTapt56W9AZZr1JqkdCVqJl8cfEGjp629PcqCtarp3pqOghpKRxSMJBtnRYsGORGk8uNKp53lBzKhVAT1nm/hz/BLU2eistn6R6lqqfoS9C436+R9V3cy9U10aCmqLFcbhM5p6ih3JE1ebDS2sUrALSVCySToitdq/rw+uXtHlJdH92dR6K7r0rmWoXqWq9SaIx1LMY7GqUis4p6+jv7bq3cbfRFMkjVWy1Gw009fIWoSK6uPR3xFdS1UDQ35qV3aZVFfLRIGonTa0kFVBTPTxzU0qZ2zRGKaLeJSXRSmon4ifwpvhq64ty9R+GdJ1N0DVUdFPDWdOW/qGe4UFdVNudK2GfqT+Z1NPUwbyTEtQlJUQxrEYaeU+a1rr0aet7tt6v9CSZzDIulNbYSDFPq7Q+QyNK5LQjzdX7vC5rC5OvJ9vm9M52FZZMXkEENqKSOSjkqlW3Gnv7RdFdc23rQXKmpY5KW8WN6RbxapGWSWmjuEAqrbWwyRZjqbfcKc+bS1MZ7hopVSVCuuDvxDfD11X8PHVENmv9TBdbHdZq6Pp7qSmhlpYK+S2zeRcLbWUlR+Nbr3bZGQVlBKWRkdKilnnhYlXrAggEEHf/UH/AH+P46m/29/p7jP1Hca1/BBAIIIPYg5B/Q656NfdHRo0dGjR0aP+3fjTe8/r/IZFpjWnlpY9JrEKw1yI529h3icWZQfcWTkh5xKVEZ8bFhyLrJHT0ECzyIJ2IDEkgqCcEBV7YGe5G4rz+iK3UtZfbg1DHL8ogOAGyHYbtpLEcnI9W0YUds6THKaprUqdvJXr9TGY+lBJZt5G9MkMUEEcbPNPZtWZFCRxorPIzsqqF3JYAkNFReZ3jeRXipKaON3kldkjREUFpHkeQhI0RRuZmKgDLEjk6s609AW+Gpp6WSCqu10rZ44aSip4mqJqiaRlSKGCngSSSSWSRgiIAXYnHBIBZhlfW3pjPGfHdkcLqbvPqSRrNanDp7D3KuADw2BUXJ5HP5FKWNx+DE/J1yMtiOG3DG5qNJzjbqvh4gW2vRzYnuHU1U5kSJLfDLFR+hzEJpqyoSOFKYyBiKg7Y5IxuR23KTskvw3XKxSwSeIUlj8NrXEkFTW/zmtpKi7pHNCKg0dPaqJqid7i0eF+SZZKmGV8TQIqHOf0pY9VuVir5LXGp+3OnUuNAs+nNPaVm1AcRI0bvJFbzE9zFPPVUJ+vLGxswvMkcMsoX3S4W9esCIqivntVMzlN9JSUjVppyQT+LO8kYYceso5wW2jdjOmXqD/cXSCooOmunurrq0Cy+XdrnfI7QtcA4VHho0ppwknrJjjkijjdY2Z0UkLrGdxcP3LM2mcnJl4spA2pKWJy1fTbX6FJcflI2r/fT4+1ZkmVILUYB3u2hA88QichnYe77DfJfkpzUu8Jq44KmGhWSCJYplKmZ1ZvMwjjGGkcKzDBO4gZugK/oGIXq2C1NSVTWipuFDVX0UlXVGropFkFLT1UMXlFpKdztIghLxxOXX0ka7Je3VnHzxZvH258dxeCe5kbFp/elCFFKzidjG0TeP0mEZWUtM5LD8k38iMciVELvE5MbSSySsxfaANkm5thQ85B2gEliS2NKZOrqWqhkoauCKpEazRU9LBSrsjyzDdCKdPN80EnEibt6gKMKdeTP9ve0Xdpc7Q1X2hxGocdkIy2fz2Z0zpfMYDUs9yIV7M2BzynJWpb0CxETW7NmtLUcQlK5KwlFdb0507dYaiOrtFJVLVKzV80lLRPTTPIgjJirChlacKMNOG3o20I2VVh56Z8QvFDoM0clp8QbjZmpfw7La6O7dQ0N4tMcUrOiXG0IKamSml8zMVKqTCT1l3ALAwJd5fpDdwIdf6n7qYvv92ZaTJ3Mna0/o7IYrV2kKGmseweHC4XF3GyGr554cZTEddpbfm3OJrksnuTuo1g6p8AZIaV4enr30rbKLzneC1kVlFDTwM7P5UcgWtlkkYkNJUSFpJJAWdjkAdWPCj+If09TdN2bo66+FXiHVtQU9HT3DqGiqLPepbpXRojVFfWUrRWQRionDP5MTHyomWGMbYxhkXeb0P9+8BpJcjDo99Q5OpUqFL+hrUWrqZmw8KrvBexAe9G0wBmrS26FMLF7jytF7XE1cng/wBXW6qWq8iOelFMY5FpW+appmiQRgh6dZB5k21JAJ0jjCAmRlK4bcToL4q/Ca/XPyR1GLOal5BUW/qeJrBUPHXB98LUtwIpZ9rHymjpqqfeyqqB1YEui9Ond3ux6YewPf7XWoVzOg+5z6N0j28w2ls1Uy6ZvKaV1Jk8Go1dpmlLRpHFZenJ91isYwuZtcVby9u3CIHjpRC3qW5XTpyw9TXqjkey9UvZbZ0vVZglZ5bPNWQytV0hNLSyxzU0bVUNvnElWsEtQ21l8uIa1s8W/DTor4h/Frwi6Vlp7P1H0LR9T37rapu1tr6GW201+slDcilju1QlTKKqinBpaq4QVFPQS1tHQpAN8bSzNZF+nn6qMH3P7Jacg0jqDUOdl7a6f0zprWTZ7GZmtTizz0JJpNPV8jloYZMxfwtRIaGRu1t5I8gkke9hE+4l2f8AD6/WnqKwwUlLLPUyWelpKKoqZIKhSKgREGJJ51LztAEEcpaSU7tys7EFzxT+MjwW6r8JfFq8XO7UVptdF11e7zerBbLfcLbUPNbIpoozdZrdQTOLVS3WoaaqoYnCL5Lo42M/lLL1BL70MU3Bo/dijk4ONnT3EV+DA7bMu/Fv4II6kRGCRnOCRkfY41q2OR/5/wCf9ddvXzX3R0aNHRo0gfdzTVLF0ZtW45LFOY2oxmxVVZassU4Ma37FSRWiR0mEMc88Xte4JVeyXIL9LqarEcbxTIssOCVVlBK85IBweD9wccY519p6CSrrIflZvlqo58uVWdGYgE7V2MpLYye/Kqcg9tMY72dpsZ3/AO32d0Nb1fl8Ri87WgqXjpq+mIvezBaFxomeWhmYFFqSKGK2WpSpJXh+3MaRyTpJG+q+l7F1pZayx1VxuVrpK9Io6l7XJHFN5ccyysgMkcwZJmVY5l7SQr5eArMTevhV4ldaeDnV1q6spunLLf7ha5aieje9wS1SiWppWpFmRkqKFhLSxSSS0rCX8Kpk88bnSML09qu1uF7PaOxui9L6VpVqmPp16lm6c3irEuWeKqlWW/dWVcZLLesBDLO7wJyeWR0VC7L14s/Sds6fttJarNUUjU8EcUJL7YppRGoQyzAgAyNjc3BG5mIJBwHjrHxOvfiB1DWdT9YR3kVFZUzVMEMNHUTU1CJJDMtPBMgnxTxbtqbmLelAzMBwotXGvSxiVIqV1oYEZa9Otdp04URmZ/E0tmyzl3ZmMs0vuyNu7ufO7xBRS00IiippWVAQoUxsvOT6WMjk8knLEkk55xgw2v6ooa2vM71SU/mlTLUVdJUPIxCKCWiSKIKoUEBEQBV4UAd/fjqjpSljfGEqN2MV61BakJDBiS0RkRmVlDJxVSzDdSh2PX2Wkqym1IMkgZjlIXODn1EErwQD9CRyAe3kdSWV6qMz3BDg4FRRQTRIEPpCgOFkUFcggnAUkYIyT95LHRZ3Hz1L0DJA/Ft1LRzQyxOGjmiU+XZJAG8clcAjY7nZN8hUzo0dRTFowMEIWyCMMpQg8shwQAGGRg55GlY6htFunint1xfz1YkB4i0csbAqY5XAOEdSMglSp9XcA6Zl3E9OWY1DqaLV2iu7/cztTnjHBVyQ0dWxtXSufqQWJZeWb0nbwWUw9u3ZEixXMnMDengiiBmAii4RWv6Cqq6viulBer3ZpEhEE1NTVNItsrE37i9Vb3pmAqQfSZlYPt4KjGRe3SPj5ZrJY36d6m6L6N61thmkq6OS7rWT9Q2ud41QxW6+fPQVkVGD+JHRLiFJWc4J3a8+B9NmsJb9q3rrutb1akjBsf7OjdLYOzVQIqj7i2EhjuFWVneaGKlv7oVoVdPdlzUnR88U7vc6+nrx3TzKSmpygUKB+KdhcDBJICcEA5Oc5Lr4/wDTUlHHT9IdATWGpU5qpP53eLnHOSTlY6YvIsRcEYDvLt2HaSp2hfNN9ku3uPiMN2jDlhIqvPNkssJZTOXDyMK+MmeL25uKRtAUKmMNFJ7sTFOpTT2u0xq0K/JjfkuBNv35bJJEbHK5GNhyMcE99U31B4o9fXBxLAbjRIhKwiGg+WiSIqUC+dWRrJ5qAktLnhiJE2EBtKPF2S7WZGhWpZbSmFy9HH21tY2DLUP6ymNnaxFYi/pa52SyaSxz1688EdSKKKtJDA9aGIwQ8M89qsrwJHU0cFRFESY0niaRIgWVisTTksi7lVljTaiMq7QNq4i1L4n+J1NcnrLX1LdLVcKmnemqqi3VEdJPUw+SYpTWfy9FSd5YneKWaoLTThnWSRwzDS7+nPRvbmrh7v8AYmlsVh9HaeytvDYKLG4upjcLaylSy7Z69i6FSOtVkjr5ImpLkVq//uyMdyQTWDXWZkFrnoFpGprJTU9FbIJpYY1pIUghklRiKhowoXcokJR5doMsokYs5G7TZ4jL1VLeKet67vlyv3Vl1oaS6XCW7109wuNNRzxD+VQ1s88krpNJSYqIaNpcUlLJTjyIjIVDrelmoBo6NGjo0aOjRpOO8GIkz3aruPiIWkWxf0PqivVeF2jmS2cNbeq0UiEOjrZjiKsh5K2xHkAFJXoZKGsjUlWemnVCpKsHMTbSpBBBBwQQc8ak/RNZFb+sela6oWJ6el6is01Skyq8T0y3Gm+YSRHBRkeEurKwKkEg8aqN699cffjtjOlOlcx9qzi2Fa2MvRgnvy/poFlW9XkiZ2RSytLL7rSEqXJdOR1K6l8W+q+nKhYFigqFhASYzxK1S2MDcsqFOVGQzOX3EgkbsnXeno74QfB3rqnluHy1ZR09xInpRbKuaKhjBkkLxGkqPNWMNuUqkZjjQq+xdp2jxad+q53dtxCpm58ZUsO4ENwYqs6EEbJHLHOrgeRxeZX5NzV0XbkC20fxGVlRNFRzhoKiYjyW8iJQQBnDCQMFBOV3b/USpC4I1mvP8PPoCnJqbXDV1FMoKyU7XCdWLbjuZWjYZb32bNiFCGzgaVvF/Vav1McK+paGhNR5AIWMFwZfAsZeR/F56laWCRo12DhCFjfkd3VV6lEPxBLQoYqxrfUT4IMMxkpnLDJIOxWyVwFO0LznuMaqq6fw86CtrPNtU3VFmogw/FpTQ3QBAACyrUSK6q5yVUncUC5RG1l8d9XzQdMLj7/aquLBk3llra796lASVDqBeprOgccjFEZ2AAUHj+QXLF8TdnDCGS1BZcgsVr2aJSG9S+oBtxOSqEnIGMdxpquH8M/qKZ2rKPruU05QFUqelYYqicFfST8tI8TYwqvIqjB9mGDraIfq5dobBkhOPw+CmQBEhv0L+V8bbje5RmsQSuzk7MIgF5BGIALh0X4hrLVs22qpqTBIVJlnYg55Dyqzxls4AAwT2wBzqPyfw5Ot6MoW+du0bBXaamnpKIHcSfRT1EMciBRwU35ODsBBUDaqHr40frH2lq9xNMwuvMyVatO1RA3IlhiH3ZqRGN0YqXbZ4yCpIJDl4g8RqC6YJv1G0nLPGhlTaDyqKsrxrtI7kgbTnOe+o3W/CX1L01uU9D3jYSojnkeCoDcFZJGNNHM6tG3qwpw5wwA/KFQ0p31w+tJaxpawx75WRVjkrQLh7L164fmx94ZOSLZoBzSSESiJnCtFLLyCvNJfqev8vyayNpmwHAFPIUTIYkuJioyoJBBfBGCCcjUOvHhHeemjOa3p+vNCgLxTN8/TrNKyYXei0Yf0SNtZZQu8Lw0a408fF6wwuDrwmaWjIgrixYtTXqNatDGoBeaaRHhighVd2MzsiDffkN+rOtghgQSvLEPQXYsY1VAOcuxwFwMkk4BP+LWrXUVju14mlp4KSt3JUGGKGKjrJZpZCTsjiTa7yuzDAVQxOOfulPfL1LYTE6KlxOgMlUuZnUsclCrl8dLKKVGvPsbdqlcVhJdtmuJY6stVzDC8q2DP+mivC+veso6O2SRWueOSoqQtPFKhOxN5wZFdSN77VYR+W21WZWLADBuLwN+Hu6VPUEN360t1VRUFpkSskttaka1VU8efJiqaY5WmpjJ5byrOvmyLG0Qi9bFZL/SrizifT92whaMxy2dOrk5lLMxMmVu28hyLPu7cknQ8nJYg7k9SrpqIw2G1oQATSJIwyT6pSZWOT6jkvnJOedav+N9Ytf4sdczo++OO9SUURwAFit8MVEiBV9I2eQVwoAGMAADThOnzVV6OjRo6NGjo0a65YkmjeKRQ0ciskisN1aNwVdWB8EMhZSD42PR+oBHuD2I0ZIIKsVZSGVhwVZTlSCOxBAI/TVHj109t4tG96e6ml8NI01XT+tc/ja0U2wdK9S/KlVOPndRV9kBixEgUOuxYgaO+J1ripr5c4VbKLVzKA5Xg7gQBwSMRnk5weTgHOP01fCl1lP1F4WdDXetjRZ7l05a6iV4txVpWpl85iSRl2qFk9CDKksrfUxeZKSxBFYiLskqsskakMNuLEAKd+SkAkALso3PwAetc7zRPC3zKkqQ6BF7lSCSD7EcFl7gAY47Y3itUkUzhGUOjIVyxBJBUE5GME5UKe33JJ0m9vJycZGsAvMI1jSdmKEBJGb3H32d2jVyqgfg5CcweIIawVqQ7TAPKyKisTkjYSQzNncSFIGSTu2gNnGdShKMIVSMKkW9nMW04O6MKETaQEQuAWPJC52nkA6zYzkwRxHI6ozMWL7M4jUqy7bKOMgI39wEkluI238+kpYxuCg8sMck++4HOAd2TjO4c9hjWeaGNo2jwolA+WXZvjCyyKeQxyCgVgRweVA5II1jKeUksXTG8/wCm5MihmEbMwA3HIAEj/I7F/wBwQNyT05w0SlFUhkY5wxA2sSD3zzk9s8fQ9+E0oEVOjSKJZYwsbyBSoxkjd5e7A3cYAGPcd8BV8JksqjQzUnSSSNHgG6wy/pEnkDG4Zwo9tmLhQUUAhgNgczC7UUsc9KgmEeIc7Vl/DJOAykHAGG9bflAJzyNNNRBaaqKSnqBsEjiU7jJGwcKMEMAoZskbUBJJONvchwGD1hlIqSUzfyGPSWlFFKKghpizJufyZlQzCKPaBIWhkiJCyufNg9WdZ75N5UCSvNTs1NGHMYSLzGPJOeWMa5VUZWGfU39vip710xSSTPMKekqhHNK8Xn75zGnG0DJ2ByPMZ1kRgCygABOF37eapuxyNThy86C8IksmaxLJBbiQNvFbad5CYwGPto4dfcYvyj4qTbNir5VjKLUviUBWEjllcYyobOTjB9IIILAjI51S3V3TtDJItQ9tpmNNmSJoKeKOeBxg74jGEzJuA3vlG8sY9Xs9Ltg9zUeo8NRe7YmomSPHVoWkknjgS3LXi41jLy9ooFjjXjxCDdV4hupAtMLpPTUzybY/PiQHG4AF1ztLflwQo3KADgf2caorrMRWayXa4JTotRDDLWyNsSNpJKeGZw0+zHmBvU7bmYtuDNlgdXEtL4irp/TmBwVFBHTw2HxmLrIABxgo0oK0YO378Y92PyWJJJJJOzcMSwQxQoAqRRpGgGBhUUKBxx2HP1POvz0XWvnut0uVzqXMlRca+srpnJJ3S1dRJO5yecbpDgewwOw1nesukGjo0aOjRo6NGuG+D/sf/nRo1UA+qVg48B6te68RCiLKXsNn9yhjjjOWwGMtTPzJHuyM5ckDiCzbHlty61I8ZbcFvdylXB3xRVS7iVUSeSN4DEcsQO3b2Hvn9AvwGXtrn4FdFqw9Vu/mlpQBvMeUUd0rERSneJQGUL3ztJGARqDnuIZK9yaalJuPcJDsV4+G2YHffYHzxUnz52Lb79ay+YLizU8oILZG1iFyBkHJIKgpjA5yeCo5xrpjZsrTwzFSoCqxK5PJXIHB5JJORjHfI403XKajZ3lSRYmmYlVUK4JYLyaJlRXbm++6PsFUI3Ib7HpG3TkURkkindR+ch9pKAAllY49YyfScLxncc955R10jBEMIwFx5ikMWy21XG5lwACdyAnO70DvrAz25njDTwJCzBhxLnkRv+JP/aq7DwoJI/EnpNHHH5hWNjMF7NtwoKnnkn1Yx+bAHscnnTVdeqqKlaWOn/4xo3QR+W4IBXPmeY2CyGJsKm3PJPK41469/iytEoDgMgAkdSx2IJLH4Db8fxPwdgR89Ld7RkFlIAXkD6EkEZAPBGfbIz7dwjo+oYK8qk8E0T7lz5f4yxhR5kjuAFJVB+UBWbnkBTkKppTPSKVjev7AWPeZUbcN7bKUHIkGTkWO+zbk7eGG56e6COnrwEWT08iVBj1BfyBw2Hwc4GPcn240XMCMJJHItRHId8EwBAIYEMQuMLtIwVxngjg6cBh+GSqr7MiGZYjJJAnNZEghVXLvM4aORvJ4xK6cBvvuSqiRQWZmCJG5bYoBVT6/LHOWdgQxyT6UYYGcnGAILXXBIJG80MFZj+LwwaRiQEWJSGVT+UsVbOcDnJ0ueiZY8fsJoo5WkUKkZjikZRC5EsksjbPGG32QpuCB7vgcSbJs6NBCqkAklAowCQyHaXYqdwBz/Z+nGcjVTdRyCqaTZvVVLOWyyg+YAVCx/lYgDB3jj8vsQJK/STRm1P3I7eYqGNBHPrDBJMvEKPtXyVRGVQV3dpCXdgxIYjcDcbCx7Ohnr7RFEo3NXQGQcDMYYMwyc55yfYk4HuNai+Odyhs/QXXFbM7hoenbqafliRMaGoAJIICqNyKMcjPBxzq4Mg2Xb/Vv/p/+Dx1sZ9fuSf3Odfn6AwAM5wAP2AH+mT98nX10a+6OjRo6NGjo0aOjRqqh9avCnGeoMZX23J1DobSt5OJKcpKIyGKY8uJ8OKPBvnZgG28EGg/Fy2ieoRypPm0kXAO3dsLpjJDAZICjI7EZOCDrtN/Dl6gz4bVVuMgBtfU91jwTuCJVClrM7Nw5DSFiONw3AdgdV19Xv7qzoRJwbnu84aMbhTIq+UC/kOSrsDyC+6oCsF61Hulk+WlaSMOyhjy4KA4GRn0r3/Ltwe2eASNdgrFdN8cYZlyQuBGFbIYepwCwxj8zE4xuKd+dN8p1IHkyuStKX+1mhqRI0lOFDLPHLOwMtu5UX3BXH+AcyRhwxHEjd0oPDvrjqu2QVtjoYHoDUyUs09RX09GwkjVW27KghpEXcNzojKSrLkMCNV74kfE14VeE97fpbqW9VkPUAtKXeGlobPW3OMw1JmipQ81GrxRTGSByYJ2gIjMUgLI6nSd5vL0jKwmz+BpbseMbXbuQkAUlRybD4vKUxKPCNC1xZAw8g77mybR8Pl4EEbXK/wBlo5G5aGnSrrmXOSQXjSKPAPPpZlI4GeM6g3z4/Oiaasb+W9BdU36OMSgyVVTbLFFIsh3MqRNJVVIjy7ugkjBjOBjBATrrY6domvnLLHSQBnu2MDrWtSVCwUObn9rz1lRiQA7yIhJ232I6fJvh9qDGGh6lt5DA8y22vjX64Zw0hUEnksDj9cHS2g/iRdLUwhWt8Fb9T06NG0LUnUlpqZkAY7WAnoYCWLc4Ey+nKlvbSg4BclKoNSehl1jdGjkxWTo3pEkj8gSVUsQ5GIlPLI1IBFb9QIQFEEuPgV1za6qOrtcNuu6A4Y26vRHKMckGnqzTsTxuGCxXk59tXN058ffw+9UUrw3ybqXoiqYOTD1BYZJ6dmYgOY66ztcYGYEqQWihLDJ3btLdpfJZOOT7acT15UnKz1pf02i4KJpYnTc7eFVipLqVKHYgqShltl6sdfJbbrDJR1sKxtNTMyO8QljWWNGMTspBXD4DHB4bBGrdsHV/R/iB09S9WdH3KG9WOterp6O6QwzxLNNQ1DUlQPLqYoZkZJkdDujXcAXUsjBi5fSV65cnqRKfdjeHccAoAWQB23B8jg4VCf8AxACkbAdSWhllkdByQQCFB4z+bn9CDg9+e/HMWvcUCRTOcKwKj9dowew/unAx7E5wNTWfTwxkVzvZ2qrxx+5J/c+KnsMNiohosb0qqvzxLQO3Mn9pD4JA6unoiMS3GjOCzB8sT3AjUngYzgkcHPAGCcHOucfxe10lJ4adYSFzGj22aCNc43PUyR04yRjlVcgLgduO3Nq8eQD/AD5/589XtriZrno0aOjRo6NGjo0aOjRqt19dXBFdS9qNQRRAG1o3KY1pCD+T4vOyyhC23yseWJUb/kxG++y9Vb4k0wlio5cZISZDwewIYc5/xNx3zg+2uoP8PC8+RD1na2kwq3a3VoUHBAqKN4Gbb2bLUyg8exxzzqqX3BusrWCvicOoWPmyjk0vtwxtsWCo7si8xzaNCWAJAVtfh0+b7dqG0rtWS4VcNMryAkIJJFUuQQQSiFmUKRkgA++uul969g8P+heputKmJ6mDpawV97enBCmoehpzLDBvCkoJ5zHG7BSUUs+CRppWrc7WyM9nGCQzUsMwp1FMUMMc88KmteyskMKgSTZCzCzCaZ5rRqJTimnPt8RtDXW8U0NJR04JpaGCGlj/AAwhkFPGkRmYIABJLt3OxBZjg5JzrhhH1VNe7rcr7XuprrzX1l0mUySSRRS3Gokq3hjaRmkEEBl8qBCx2Iqgew05nRmDyl7sv/efbfHUsJktH6WymW1lb0tb0nk9b6glxd81bORi/ren8jqrGR42uYJclg8JMMfQpGplOTpbRnkFBSSfIxzQKy+VE7S+V5Mk0pRsE+tGkQqDgxKOF9QxnIbqypR/MkpdiSRAlndsO4Z9qyDOJGUYw6oQg9BwN27We9L3f/WWutbr2h1nJmO5mjtbR3oc8+rdbajWppjRVDCX7GpL01erYr4SXH1KyG3Zt24a8cUogjhlijk/FZQvNPL8uys6TBtzO5PlxgHzCxUBCmAASMYOMHONNkV5dGSCvdqqldt0vm1EwEUYUl3RFlwSoBYByVBC45bGkJ7j6u7aailwtLRumcNgqmlzqDDNl8PjJ8cmfxs+csTabbKQyWMg2Qy+PwaRLdzliavZzFi1MxpVatWFZENXSwu6rDAsaxbh5sQIRgzN5YbJbdtXktnLFicYxpEvUqrTqwjjD4cAM4Mjx+YfLmkw+DJ5ZAkYBRkIGBPbd+2mplzNdIL8sbZHFugayYI4bFrAzLi8bXkeaFUNybT88EW63FksHE5CSUWGjxskTQ7r/pP+edOzVcEcIulnBrjKaeMz1tDBDskpjUACVjEpMsayEgsNoHJOr/8AhO8eG8O/Fmgsl1qq9+k+tmXplKVK+dqGz3y41sL0N2S3M5pv+ImjWkq5I0EywyFlfCkM8zSER96shvqY94huoLTKVkbnExQKNwp8e45VTsAd/I12p6T8RAGAUkHGMucjOeMDsRjsO47412Fu1xQpJmNmfDjDMCp7jJIOR6gc7Bk8knGp9fpYYmO73y0aQWlSj/XsmHYjcGnp26hfYHYqWkV9v8VJ3Xy3V3eH9KqVe5ckIjkFu4OzaTwCADnjnk5HGdcwvjfu7x+H1wiLKHq6u3UpRQdu16+KUjBA5VEYA98DJ1Z0HgAfwB1cGuQeuejRo6NGjo0aOjRo6NGoIvrmYNZ+2faHPrGS1TN6txjuF329+hiL0Ee+2+zmtYJX+EJH7kQzraAzW6JwM+VMw7c/iJj9v9ccjW9XwJ3g0HXHU9CZABWWu3zohOPVT1c0bv3HKrOueeQcfTVNPX5IyUGOix2RydjL5GtiKUOKTHvffJZKZa2NgWPJ3sfTYWrrRV1d7kZSR4OG5YDqt+iOnYbv1TRxtVmkqKKeK5UqLEHesalmVpaWN/MiETlFzubdlcgDuD0Z+KDxWuHQHgj1BU03TR6goOpqKt6OuVQtclOnT7dQUE1JbrrUUklLUfP0oqmELxRtCyTmA7sOGRt+a7VXRYv38iNa4FJJM5lJBZ0HWyMUFCj9jksnYE2M1d7UtHG1M5ibE9+HlVEGQpWI5WinRjspWWXfI0gWaMOzuAYAwCj1MVCTflAYZI7A5yBwOJdr6slgpYBIy5giQO6O5DCONASSyKcYIcnt6iOWBIzmK09i8BkJKUGo9Z6cz2FtWxfOA0fr7TuQp5PBVoJslNlKsk2oYMXNRo3a75edHpRpWtQxyCGtMInTx2poW9DyxMrgFY4Z4xvQJkshEgBVWUOfQAGG7vjT6eqKaQZlkUyRL3cASRrJ6SQ8bo2CcjB3hsEDJGlIfV2jZcXq+vjrUsq16tZu40k+n9f4ilPH92leu3cCbQ2icJnb+JfICGOHEZLVNLCWrghjevPMIx0t2Z81Qm4BQKhjHMi7Rkf8QYYlYqOPSZVBGM5ONYZLxSNEMVAxuDHO519TjDcEFyXIA3ll3ED6AJpc0FktW3cSYtUmePKTxU9O4bTnZ7uJSxjS3KbZOrQwOHpafgR57mOhe9XAFjJZOlC91rN6JGn6wC1zS7CX4OQiw0syoRjcoRNgIJTJyeWC7iSOdMs19pVMgSYbshSrZLszH0pyfytj0rwpPAGe+6aC0vRwDXMm2Xy+TqLh45LFmn291UsVWjaliyAtyS3WqwrWuY7GZAEP+bU0s2Il4QPKnqtsklXarrRxyvHJWWqppY5TBKixPUJsWR2C8LhWBKgkqWwOMg6R6+oemeuOi+pq2FK+29PdXWa819GjwSS1kNsrEmmp4UeVFeoxzCsjxp5yxiRgunhdvr9e+at2pJZkr2RG9Zp65qTTQSNtHO1YyTPCZEHMo8rvwKsfBA61KrOn3tN0q6B6qCqkpHWF5aXzDC0oC70UyqjZjLFGyoAYHDEZOv0AdK+JtL4gdE2brWls90sdH1FSSV9Dbr4KdLmlHK8i09TPHSTVEEaVSKKinUSbjA6OyqWA1ZV+kPiVsd1JLQUlsXoPP3HYr8GefE40Ny/ckXSgHjf8ttwOrc6JpBEs0hByIgoPbPIXI7HspGe/Oc865t/G3fTUWOhpN+fmb7TjG7PphpqqYhcdxvAY57HGPtY16sDXNfR0aNHRo0dGjR0aNHRo1Fz9W/ttkdf+l0XMMiz5TR+ssdm46jcQ12nYxmVxl6rCzEKLBSzHPArELLJAIuQd03Q3Kge40NTBGN0iJ56LnBcx+koOO5ViQDwSDkjjN7/Dp1rSdFeJltqbgxiobtTz2maoG4ilklaOaCeQLk+UJINkjAEormQAhTqix3WxNyHJyxOZMZfp5Cleiees5kqW8Xkq2QrSCq8lVi0c1ZNozND5+HUfkKntczdOdQUV0aCWQ0czO0QYws4KPHtLMCO7ZKlTnbjIznXXLxBskfjF4SdR9DU15pbeepKOkjpbw8TV9NSTUlbSVsVSIYJEeXmm2oY5FZDIZBwuCkGd1xl0j1FWyGXuZaHVdvW929WsYZxFHFrTTVfSWTwGMhbWoEeMxmNSpkNM4xpZXpXcXV9gzrXWtLfvTvWlv6lergEdRRVKq8wgrHgcTrOop3SmcTx5MeVcREbgMMucYHJ/xr+HHrPwPoLLdqq80fVlku1VV0E1dYrfco5LVPDTfMKblTzRTGKlqIVZIqpXESyx+U21nUtoj6rk1Bkte2EbKzy60wrYTuNi4u2OopJMq2VrYOGHIwpX1e17EWWu6QoZiA4yO3RfIR5Azxy1LLVklgpnn87ZE5Loy1KfLyDfvREVlAlLqT5SuCgcMQc5GANZ5uoaOB1aa4wo9QClO5lQoVikLsGVVCFlchT5jqVxtXgaxeka+JxtbuJpmnDeyGP7iYfTGKymHsaF7g0bWMxeJ1DT1HjzSsRZuS/O2UyOG4zz2TJyiW2lT7dhGYPlNbcvPEkUjLMkaFGp5wyKG3jBLbjuaM5JPOGGccaS1/VdHDRNIbnTBGUq0hkjKh0cOygqTGNo2+k5ADZHfOlNn7jZe3nNUCHKXMfq3UuR0dqHUs2E7f63p5CvqHR+lLmB0bmcWn9eMGm5adXJvmYqVeRYbdwwRRtXoRGp04vHsklUqY5jtlk209RlHEDRwuBvKRBUfeAWAJIGcZGmJb8a2JJUq45IZpIzEySxR+c9NIMBeBI2ZF/Mi8H8oPGVek1Zb1lQzlfKPoe5ZyWT1RkazpofLY2rQ1BqTTOF0lnNRwY+PLz4+fIh8G2WwlmRI/6NlMhlZKgkx9pawhV68QLDaa2rtU6VNXPSuUkkpKNGp0laKISBS9QodkC/mUBUZjtLrka2n8PPhG8WvE3pOzdcW6r6Zsdq6ijqK+ipb3XVlPc54HlaAVVRS0lun+WNS0TTIjy7ioE2yLzUVV77VYK3amxtanVmsmBK8PCFHMYEMccY4uQqIgCn/NgwA3I33210NI1ZXzVEaPJ8zUyzFmXk+bM8g3FSQGw2DyRnPJwDrsSbvT9N9L2q1zz0lMLPZrbbikLkQL8jQQUsggXCuYt0TbAIwxUgkAni1/8ASJ7dz4SHXWr8jIpvWMDi8LXqxEPHTq2Mkbswll8iSzNJTh3CbJCkfHk7OeFtWW2GgtyySECWd0ARTlUREJIz7sWYZx27D3zyo+J/ryLqbqG32ahVjQ235isaeTKvPUy7YBtjJykSRh9pf1Ozs2AANTbdOetXNHRo0dGjR0aNHRo0dGjTW/Wdiv6r6cu4q8Sxp0aN9dhuQa+QroW22Pwkzbn9hv8AHSuhP4+3ON8cqf1KMR/mM6dLJMae82qYAHZXQZz7B2KE/Y+r9fYcnOqQ3fShi7uVvR5CjVtKssg/VjV3A8jdH480Pwdw2258jweoTeaVJJ5A6xsM45AyDu5wTyPbB7cD+nUnw7v9VTW+k+WnlhOyPIRiFJwO6kkY+pxye50wrWWjNOR17liGK2hQcjWhtBo3EkioS/3Ec3twoG9yY8ZBHDG7iJttumCO0QyypGD5JkZvWDuCnaWwoyCWfACqCNzYBKjnVuXPr+vttnq6pqeO5LDGm6lcrGsweSOImeTZIqU8Yk8+plaGby4Y5HETkAaQu5pvRzWvtmu5SOBE3edsfTs4+tKzGONYa0kbyRtMeIjnpLULB1aZUkUbT201fVNqpBHFXRV0IcNFQV6ipkVVBZjDKXV4Qi53RrKVUghQ2CdaXeJfTHw/eIN+krbl0vc+l7nNCxuPVHSQFqopKmSXZDHW25aeejrp6ltrR1QoY5pFcNUlGJVfuPRGgoPtbkWRklhuXTjzcSDI8Y3gCkNZW5nXglhBsoI0NSaN5LAVITzcdPSdT9QlpR/K7bFPDAsrIxqizI4fYqoKkoWG132u6hACWPPNWT/D14JiC2VY676xr7TcrxPalmhp7HBBBPD5QlM0stsikWImaCCJ4o3kneZERTgkb3Rw+jKM5p5JsnNJTmmijp2Pt/teFaURSyV6ePiix9dXkVmTlGtuUR7O5YInUYusnUN/iilqa55KQhHWCndqSkUyKTh4UAkmcDbuZjKudnYKSL+6Asvgl4OT1tDaulYqbqGCoqoZbrfqOHqS91EdDOadqimrJVait9M8gkaCnp0pZWMchZTJ5aO5zSuFwNFIHrY2r+SK0bsvukggFfEnLYbEcVIULsRt46hYokVmG0Kw/MzAs2QT7sTuyc5JJ/U552lbqGrmhjZaqTy3jVljjIhj2SKCo2IqFRtKjYVBXsVXBGnXdtbqLagjQLEqyKihQAoAIGy7BeXj+QPJI3O3TjQRYlGRnIBAGMf3iQB2/bPtnONQPqyulajchizGOTk8t2zy3fsM4IyeOO2rYX0vaRTtRqbIOPNnKYuujbb/AIw1bUrrvsDsDKp/13H8DqxpBspKNeclZGIPtyoGPr2OSefb255h+J85n6vrCWDeXDEvGMZZnYdu2P6579sak86Tar/R0aNHRo0dGjR0aNHRo0jvqDxzZXsl3QoqnuGTRuZmC7E7tUrm4PA8+DBy8efHgjpTRnbVQnn84HH+IFf2551npX8uqpn59FTTtwcH0zIe+qJHqA2g1Hk0XyVszrsv8Fm32H8ADYDb+N9/PUbuwU1EgIP5mXPH9luD/XnPf6Z10q6Akza6Rv8A4o2HOTkIOfoOMY+pzx76ZTlZGSWTiTsGB38gBQT48kHfb9/A8DbceSyBcjuMH2J/ofb3/wCmfbVppOSoJJJKjOQMc9gSOMnPbuR3BGtdBjYsHCvv4JMasrbnf8kZTvudgSxPkAnf5P0hh/aYZ4BVmUj/AOwwQMfQjj7Z1ilNPJmOWmp5A+cq8UbKSOfVlTn1AMc8k4JOca6ZhXO0Zr1pIfdMxBgidVnI8y8XjA9wnfeUAP525HfrHvl8wHzJB6Ap/EcFlHZWKsMp2IUnHc499Yo6O2yRhJKKgkVKj5lUakpmVZ//AH0jMW0T/WYDzSTndlRjN0pY1ILrFu253MaFiSwJ5EK25JC+PJLAMSzjfr7ltqhSyqCBjcwGBkAY7f3sfYnHGlnl07O0jQU7SHdlzBEzMXIZtzMpY7nAdsklmAY8gaUfD3thGQQGZQACdt/jwCCBxBA/g+fPnwMLocHHH0+o/X7e31/z0qWQtzj8hK4PHYe55/fGfbHGnFdt7+2RoqpH5SIG8gnkWU/O/gbb/wDI/b5V0ihZowRlSccncQScn7e47c5A4zqLdTMzUNRyAwU89hgL2+4+uR7auR/TVoGv6eIrrJx+/wBRW+JII5rUoY+ElTsAQJHf43AJI+fie1JAWlTJJWnBOQByzsT7n7Y+3IznXMXrp/M6ru5znZMseR77VzjHsRu57e3H1kI6S6iWjo0aOjRo6NGjo0aOjRrzXKta9Vs0rkMdmpcglq2q8qh4p61mNoZ4ZUPho5YneN1PgqxHX0Eghh3Ugg/Qjsf/AN0f5fpwf39tUS/XRoTB6V7wdwMRpy+uPixuqM5U/omUZlWFIMhPCi43I+Y5ofaVfbiuGCzGd1Mkx/U6bL5Ei1BkjJDOqytG/AHmKGJjcYGNxPpYDHGM5GugHg1ea2t6atb3Cn84GmjCVlMc5VRgCohJ3pIMbTJHvjY4LBWOBGFmPfimlSxCU2JAYEOhHIkFXQsNiAPPI7D+eo4fSSWGeeDkY9/cZGe2P8tX6hUoAjbl3K2MFWU4wCwIHtnt6fryNas9iJhsJVDb7r5Ct8+QVP47DYDifJPzt4HXsNkdwPfHHYfXP/PjXiSKQ5AUnI5z7Z7d85OM4PAPvroW3E+4WRQeXFgdtz8ediT/AJDyp+QP9+voKZOQG44IOMd+x+3f66FjkiZfSc9wcAkZHJAxjP157+w17ad+sQSsynizpuDuC6gKEILD538tv48Ebk7dYWkQ+kMODzxwD+v1zkcgd+cY0uSGVTyhAkwQD3yCRnIDAcdh2+uO43fDXA8iLGzOx+eJ8gkjwpIC7bn8jvx8KeXjrGWTkbuT3AIJGT987R9/20r8oquWUKuW4JHucZP/ADOecfY6d32Wx1C9nMYmSvCrD9zFvBSC270p5j8Qw3rVtwPMk0pKBt1hfbj05WyON6iJCxxvB2odzsTjtnKgZIye4ycLnVb9c11TR2ypNLTGaVomxLUN5UEYxndjHmzHB9KomGIGXUHcb2Xph09i9Mdgu1OLxFGPH1To3D32hQl3e1lK4v2rE8zAPPYnmnLyzPsWOwVURUjWY1R/Hdf7MZEajJIVUAUKCeeMc/fPfvrmDcp56m419RUyebPLWVLSyY27m81wMKCQoCgKoBwAANLz0n0i0dGjR0aNHRo0dGjR0aNcH4P+3j/f9ujRqk/9YDE4nT/qv7n0MdXnw9u7kEzLY+3E/wBpMMjiMbkZ8pVm+YK2SnuTWK8bRtX90yRwTIkZiRiv88atTKSxkaHnIJXEeTjcB6W2gAZ4yCAScjW+/wAOi1dV0dTlgk8MVRNAjQuBLGDM4WJozhXMYUbirB1UrlSCpMHGWyDCxLGXCuGAKhkDLyO4DBGBAJJI+OQ8gEEbsIlVuN2PoCePf64/0/TnWzXy7BB6NwA4JXn275BOT/Xtj21rcllHKiTkdgQQSw33+CPIAG+5IJ3PyfJ6yrtPc/pjsQR9R/214ZWwdvcHPbJOBj9888Y+g768okhJH4+d/DF2bfzsD4JG4O3nwdt/Px15bYDkfpnJI79gD9xn99ZEDjBXDZXuFwApGCME+2Oecnvr2RTIhVYvBG5J5bLy8k7qGbxv5/YkDcknc9IpGUBg3fI5OezZIPP976d/6adYImZQ7lsbsA7SCBnt9O3HGcHI4OtuwV2nDIZZLFdJZgnMmYEvwXwArsdvIJ4KoJB/JWbz1gE0URYsVH3JA49wcnsO4wD30reB5VjVQ5XlV2xnOSeASq7s9hlsn7jJ0+3010kyWrMJFM80iWL1GKClSVnu5CSxYjhhq1QF3SS1LKkERVJJmeVVhjLn8Xaz1lOa6BfMZt0igJFyWOQQCxGAPfsTxwRjVV+JtJVQ9N3SaNEiMVNO7z1XpjgWNCSQDgyEYyMlEUjDtj06/QT0zjq+I07gcTTpDG1MZhsXj6uOBLCjBToV68VMMSWb7ZIxCWYlmKEsSSSZuxLMzE5JJJP6nOuUkjF5JHZtzO7sWxjcWYktj/EST2HftrOdfNeNHRo0dGjR0aNHRo0dGjR0aNMZ9aH0++wnrd07BU7j42/p7XOIozUdLd0dIvVo6wwVeVmmGNsmzBPj9R6fayRYkwObr2K8cjSzY6bG2ppLBRVlBBWoFlBBXISRCFdMjkZ7Mp49LAjPbHcWH0B4ndU+HNa89jqY5aKeRJK20VqtNb6pkBUSGMMjwVAQlBUU7xyFdqyeYihNVh+/v/Tx+sjSuRv3ezmsu0ffnASTuaNTK5Kz2t1oIxxCG3jc9Xy+lWmCKq+7U1ZGJZB4r1k49RWq6arQzGlqI5FwNokyj59wchkAxxkMM+4Gtx+lfi36NqY406osl2s1Rgb5aJIrpRKf7TIyPT1ffLbWp5COwZzzqOrU30l/qLaUtS18z6Le7VxI34GzojM6R1XWm8sBJC+lNcW52j/cNJXilA47oN9gzzWvqOHKx0xYfWObg8d/Q7E88cgfr76uK3+PngbclWT/AGxgoWYHMdbRVdOwORy3zFAoGe+BJwCVy2M6TGL6Z/1Dpp2hg9FXqXReZVTY0tna44htgTNYzCxA7bfl7mx8n/EHpE1J1ZgBbexOCGO9kx91JJzx+hJzqUw+MfgAELz+IFmDYU4UQSDPdgEWPcPcLgHGex4GlQ0t9IL6lWpp4o6no97kU0kcB7GrtV6I07WjVwBykTUOva1ngF/yVasrhif0xsT18Fo6qnwr0arlu7zDG3HG4My5OcjkYA5502VnxE+AFvOF6uFUiKCDSWysqGZgxBXbDRMO2CGBwR3wcnUrPp6+iJ62lw8GM1VifT72V5tMMpnsxnpO4erHqWOKmtTxWj8SaDmCLcCG3qyqpLPvLv8AEhoOn7qITHOaOnLZ3yD8eVgSQVwqhQu3jAkzx3Hc0n1d8VXhstS0tkoupr5swaeFUS0UQkTcVeV6qRp+SRuApHP+WJu/RZ9JPsT6S8njdc5nMZfvJ3WxrLPjtU6no1MVp7TlwLsLeltHVJbdareh5OtfLZnIZnI1xxlpPSm3YSG1WKjtZ8yPfLUEYM0mMjPfy0BIQH9WbHG7GtXvE/x/6x8SopbbItNYrDIV32u3s7yVIUggV1dIFmqE3AM0MaU9OxzvicY1K7096orXDEgEjYn9gTsNz4G5AOw3+Tsdh52O23Qf30fr29/00yJfVNr/AA0mqqmpexusr1nG5DMLgbWmsZkFw1vGVsjHjsTLdt5RDk5JLgu47K25qOHLV8L/AFe7Djp5MZBXyUWN/rIfmFntNUzRySrE0MbiJo1kEcbM0g3nduSR2SMhYRK6qzR+W+xZ8FumLglkntHiT09TQ1lJb2ucN4raT+YU9ZNRtV18dLBRuKPbTfLVdHClTcFE1e1BTyVMYrZZKJW+0nqG033VrYVaeE1PjchlpdR1HWbAZibD0rmkrAxubguahFGPE1JRmYMnjaNOzZS/ZnxdtHrRSoYw4268w3FYtkNRG8hnU5hkMSNTnbKHn2iNT5gZFUtuZkIwGBAgnXPhbdeiJbiam52WspaGO0ToY7rQJcKqnvsRq7dJS2k1LV9RGaCSkq6moigNLDHVwsJXRt+v/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHQAAAQUAAwEAAAAAAAAAAAAAAAYHCAkKAwQFAf/EADcQAAEEAQQBAwQABAUCBwAAAAMBAgQFBgAHERITCBQhCRUiMSNBUWEWFyQzQjJxYnKBgpGxwf/EAB4BAAEEAwEBAQAAAAAAAAAAAAAFBgcIAwQJAQIK/8QAOxEAAgEDBAEDAwIFAgQFBQAAAQIDBAURAAYSITEHEyIUQVEIYRUjMnGBJEIzUpGhCRYmQ7FTYpLB0f/aAAwDAQACEQMRAD8A38aNGjRo0aNGjRo0aNGjRo01m5W9W2O0UQUrP8traIkljyQa16kl3Vi0aoj1r6aGw9jLRqrw54o6sbwvZyIiqkceonq76b+lNAlw3/u207djmVmpaaqn9y41xQHK0Ntp1lrqtuiP5MDLkHLDBw9Nnene9N/VL020tv1139l0Spqo0WG30Zk7U1dwqGio6fI7AkmDEYwpyNQa3A+pTidVCtA4Lt7lFpZCUbKuzyT7bU0kj+InnOaKKyJc+Ng1TxCWOAr3u/irHaz86Vbx/wDEi9MbMlXDtfaG7r/VgYt9VcYaKx2upYPxZ396qluaRKMMAKDmxdVbgdWa2p+jPdFzqKJtx7s2/bKRyWrqa1GrutygULlY43NLDbi7MCpc1TooBZBKfjqCc76j29o8qW2flNFRnlGCKDQWGJ08jEyi8pFdALasGK9jI5yCYMprNj3uKVxJkdjBu1VmT9ePr5eb1U3mynbNtoo1X6fb5sUNzpJIkaR3iqq55aW7IGAgjR4X4ZeVppqdEVjaKH9GfpnHZfo2tV4ucccLPVXilv1VBfIXKrxqYrewe1TAH3pJIxSsVWOJIopmdgLQfTH63MM31kAw7JY8bCdz/E5wqQkvzU+TIJvYkjFrAiMUxPG1ZBKiT/rxhVz4r7GMIkrXQH9Ov6utqetZTbV6poto+osUb+5YpagyW+9eypM0+36uXi0rKqmSW2z/AOrhUO0TVkMbVBpJ61fps3L6WRvuC1zSbm2NJIAt5jg9qutBkfhFT32jjLrT5f8AlJXRMaWVwFlFJM6wCcaKipynyi6uDqtWjRo0aNGjRo0aNGjRo0aNGjRo0aNGmu3D3m222uCZ+a5VWUxx1km1HBMXtOkxI3w5Y4GoqOIV6+OOwrxed/Pi7tY9WtfdG9Nr7MoKm47lvVBaKWlpJ62WSsnSLEFOvKRhzZRn7IpIMjfFAzdadO2Nlbp3jVQ0m3LNW3OSaqhow8ETNCk85IQSSgFVVQC0rDIiT5PgFc1k7ret/czPBmFtJSWGE4k9vij5BYLFj5NckaVVdKhPOw4a2D1axrGjjmkGQjnqYbeirzx9Uv1Pesm+aaoHoftOssezynCDeN7lprTeb1Ikv8yazU1aJjS0TKirBM1O01QjtIJI14ZutsT9NeytsTRn1Fu9HuHcAPOaxUHv1Nntg4ACGsaEwyVtVyc8x70cMTKF9tzkagpc5Jk2VZfGs8mryWuSWLHDkTcmlTSwXtG1/KzJxZHBIIRvcUkZTAjeReABax6tdz6vlu9XPUD1BpLlurZ1VddxVcHsTV26vrmsMEYLxxz1lbFO0UlFH7rSS04mhieVgI6cglXtTbLPt/b+3ZbbZblDbrNTv7kFHY4aZa1nwGcU9N7Q4VbFVRaj25ZlQfzJOSqR7BsFrp5/a3N+W1eVrXpGxyEIAnGIiIjQOVHfCqvDurWDL0a5GOcnKy9bv04baqG/9XbzuN9r5JA60G0bbR2+ijqHwPbheaJpWK9oTHGscnFXZC4BCfFum4UMRntNlgtscSuPfvtXLPNwB7abgQOgOSFyzxlmXITrSKz300Ybltc+rrrm/wAbs5AEaI9ywE+N7vxqqsNEa0JfA1UVe0d6yEYnLkVO2n1L+nLZVuEJstZuixVwAYfxkRVsDyMPkJI0hgdYvjkPExlGRlcA4WttetW5LXUNVV1FYr3Qq7K8drkkp5DTq2Q4mZpFExwQ0ciiMt0p7BNcOHZ/lu3ubHwmVPmWRcbymTQ186ofIWxqrWhnyAss6aUNfexY4nsBMFHIoyRQkjlYQXVrXV83Dsyup7q9VYDPSbhtlyklpbhbRU0801Va5GjVqSWIxyRTpIvvRzQsGSUK0gGTysTW022r9YTc50o6OkudtjmrqC4vBLST090hWaWC4QMGhbmg9gllKyD3Fww4kaQ/S79RKlmUNZiG/wDNNAyKIUVfE3ABDfIprmKgUUR8lSGjn1dqJegJMoQCxpj3e5IOO/yJq/XoL+uqxG3Um0fXGpqLLuSiqY7Wm7Wo2e13BFjAjkv4pwZLdc0IEdVPHTvTTn/USCA+4Tyz9av0jXSnuVXuP0lgiuVhqo3rX2sapFultkLnnFZve4rcrc2Glp0aVJ6dcQAzDgRarS3tNkdbFuKG0r7mqnD8sOxrJkefCkj5VFcCVFIUJOqoqPa1/ZjkVr2tcionRu1Xe13ygprpZrjRXW21kYlpK+3VUFbR1MZ8PDU00ksMg+3xckHogEEao5X2+vtdXPQXKiqrfW0z+3UUdbTy0tVC+MhZaedUljJHY5KMggjIIOvV0o609GjRo0aNGjRo0aNGjRputytxKnb3Gbe3MWLMtYsNz62jSWAc2wmmXxQx+J5EKOK46tWVJVijBHYUi89eNI19vENlt1TWPxkmSJjTU3uKr1ExyI0XPYUv/W+CEUMx8ace19t1u5rtRW+njlSCedVqa0RO8NLTr8ppncDhlYw3BCwMkhVB22qa8r+6Zrk5r/MmRMjs5kl9jMQjJUpgDfKMLGYRngBDgjcyPBG4bGxwJ8OUiq91Ld3Wys3bdYqvcFFar4UqDWJS1EdTU+zKnJElj95DRKlOuI4Q8CrECWDs3yN+9sU9FtSymgsM9Za4lhFKJUkp6cSxkgyCYrxnlmqXDSTMHLO3XEIAo4bGhv5jR258enJSC8jCkqzVpVjRwsUjnLDHII+CxgmtXxEjt6Mc17nLyiOyfwmujjguE9hqajhlXajNHOlDCgLLHDRrIfYCRYyfZGf6sjkuctNXWqJpLcl5g+slZGgjrUrYvqJJXWL5VTxZqy8rkKyyn5ZVVPAHUe84y7AKQgxZJk9FUvUjWMEaaOZMRVVrWtfEgvPIV3CtXxOYNzm/kjeFREYN5vDSVQpKqopaAFuhNIkkqoGGJJqamLyZP2RkVTjKkYJEv7Y2nuCtUyWiy3O4BV5+5HBJTQdAkiOpqRHCASCC4Z8Hog4769FlNDHmRi0GQ0kmYMrip7e8pidRNUiMIOOKweZBPGPh3kTgfLho/uiO1s2q2W2lliroYZ6itWQzJURVVNTRhgHIkijiqOTBlBYq6uQMqTkZ1nvFovNRSzRXK31tPRe2iP71ruPfIoHSSZ6P2iys4VTGwDAo3HDYLxVO5GT3r1a/HA5RCieJ5JVPGqbQVeN3AhSJYEIho43OdyWQ07ntVV5B4/zVaW7brqakFLXNeaRXQM8UdNUClQgrHJOsrEgZOGcP8QSSoUDTCr9mbftkakXY2KqnEipBXy1tC1W4GZIYJOHF3wMCJox3gCXJxpg97MX25zC6pzZJhUuBeVjpJqy+qQSqyRBk2DY7ZckEysGKcEhljRRSFcQ7DeAaujt6KjkbddklrvZkmtrRzK3umCnEkK+6/AmphlihzDVIyqA6yKsn+5cZy69lvcKCjrUgvFNV0tSghkhqpIahnggLmOF1mkMcsIEkhCCMMilgr99Nz/lzZUWLzpAMtjXM6XNU1EBIgUkCiR+ByI+SLDc0S2CNcijeGPDlEj8GOAhnKYkMb29BrZva0V7VFakN0WVpbVV0UEEVVL0oliu5hUrJMrt8lKJIwBYqC3LTts27YrddYIRbKpKNYuFwE08pghdxmJrS0uHaAkZJ9x4lYiNSQCFUuw+/+7m1+dY9S7fXljV2t7ZRK4GKTlWRiOVHkS2xo8MkOydHrwPkkMoAzHkgyYjirIHLY9EIkE+nk36jfQ7fdBZPT2uuF5irK+lhjsDVCvt29RTSrGYqq33KaOkpy/uMn1cTQVNIzmSKeNgZNb/qjsP0o31tC53veNBSexQUU9Sb9Av01+szLB7jTJVUqS1NUie2sj0xSohnCCN4XzjWqILiOENxWIMrmNcQbXK5BvVEVzEeqN7oxeW9ure3HbhOeNd9Imdoo2lQRyMimRAeQRyAWUNgcgpyA2BnGcDONcTTgMwU8lDMFYqVLKCQpKnJUkYJGTjxk65NZNeaNGjRo0aNGjTMb5Ypm+T4bKJgGZZDimQUgJ9rDi0DQdsjkR4ZHxqeW9zo8obTGG1kd0aYJnlM5JAJLVH4tC5LVfRzvRs/1MUUskUKFV9+RYyY4ixBK82AAI8E+D404NsVVsp7vSJeKWlnt1TUU1PVzVKSSfRU8kyrNVRIsiIzRRsXYOGyq4BXvNIFfvFYystkYvlsCyLbT0mFdbuzopJdrMhdnI04VgsKWSRqPc5TSTvR34Ne5yrzW+476knqGp7nZgXDSBgbrIjM8ZIJbFNExbI7BYjIxnHjoxT+jtNQbYg3DtfcVOadPpvcpf8AyrEy09NUgIHE01bUjipZSCkaclLNga7cy9x2ZOSPaY7bncwqmG0uUTDN7OeiKViPVrGq5UarntTqvH7/AFpuVO5bPPMYaixyNh2YKLpMw5dfNV4gAEjBOO/vnxpTpNs7hprf79FuO34aL23I29SoSoB+DFTyPEE4XOcE4IPem+3Y3ew7CocR83GcnnRbERwlhhzKIyMQYx/xWqKajgna8TfGZjkc1zFRrvhFRcrbvs8Te3NZ5WV0CFTXU2OOMEEPGowwOPkTyGQfwXZsP0v3VuVqkUm4LDSTUrR1AnmsFf7quzAI3uUkhkiZWPJWUrgjkvYB1F6w3Q9PJwOm2WylysiQqO96/I8SI2E1HMK+SELozgryzsjEeJrW9mOGo+OG638Q2JJ/NfatJ7z4BkMlrk4glSWUBG85wFYcfJHgamal9NvW2J/pqX1VtCwITinFr3GGn+LqkUsgMcijPyZkd2+IBVsjSdDudscY3EXa7IOziFbHmMv8QRryKiqjGPgtUj3kRyo9ERqIrlRWo5fnIa7afSLt5QHB4kSW6POSQAojQsSwycjAxkE+cLSen/q2iEzeoFgKoqLND/C9ySlQMZYrUgIAjAMuQwHHtWABLn4buNtzEsQ14Mdyaqkgi+dI5crgCQDXcIEbGiVio4qvGwatexUV7U7NX9bdPV2JXAS1PCyqGVfqYAyg4C44oCoYlQOwAes6be4dl76no5J6i+7dr4nmERmTb1bM8pBJdmMzNy48XZshviCQMEAL+/3CrLsAVZSZoMZxr4/b3kBQkGNxOxZv8cJSfDnKN7nnXyuaheidVTXrtwWmXEUtvmdHGApqqVlOSwJlVlyT2QCSQSMMcYyzqDZF4tkzD+N7TLRvmUy2iuEiE4Kx0wUsik8QXGIwE5cAdM7eZjRVyDS1ibjRYzmPBEfCsKqW0Z0YviDIEW4jqALmry4gVKqNRXNG5XcKm/XWI4EtpmSMgxxtFNSO3NV+KMAqFEOD2pAAAAyMAvSj2juGuH+guWyKiT3FlnWotVxpwYSw5yxukUpkcHshwoY9s2Ow3TNxauTaRpUanzy3s68alhznnrbBgHN/NqMaaTJe0rSMRBpGjuOplYoBuKqKqCsu3qO70txprJUyXGOT/TzrcnleNnIAWOGQSxZLqvFVToseIGSTn3PsC/vZqygrb/sumtNShFXSvQVdMsyorZMkiKrBAhYszSEKgJLBR1ql9LONbv4/tbSG3jzqyy6/vauiu49Xd1EaFdYSKdURzysWtLQL/cXk6BJL4pcuaJDBlhkCYeQFw/Fc7bNPdYbbE92rZ6uepjhqBFUxxLPQ+5EjPRySxInvtE5Ks7ryDBhyZSMcXPUSs2zV7nuCbVtNHbLbQ1NXQia3VlVVUF2NLVTRJdKSOqBelgq41WSKJWKmMoxVX5Zknpw6YujRo0aNGjRo18VOUVOEXlFThf0v9l/t/XR/fXhzg484OP7/AG1ie9c8KNsf6qdwsJlR8pjSsQyCTb4tcwioFHU10xMgpSNezo4h0rZsMKncpGqeMdF6qhGJVfelgp4L1WwSRP8ACZ5IXwOopy0oIIX5dOq5Pkp/fXeD9Ne4X3l6Q7duHuWyVLnQR2250Uw9zNXbs26oUo2eIeaneQxgArHIpUcSrFnKH1kZG0TWR7LIpw4JXgJJs4UMslr2jarQud0Qjxj5cg3tc0KL8J3VEVWFNbnVhwYyKmArSRRseHkJyXi3FWyfz3xORg6l6T0qsM5JloLfTvMufao6qojjOT/Ml9sFgHfrkuCfuAD4aXON3S7h5TBLZ3t3Ob0e6LHLCLFZAcr3DI5nV/hG1HuarFRCPexWlRpOnVdSOzwF5vepiwkDpIzfP4uMnjnOAOsKBlRjGfu+7Bt+i25b5IaGCmpHcrzeOUO84XACTOw5sHUkMGwAcjIOnjrZ2IlnkoMjqMpS2JCG4xYmOHm19hFf2ChwGfIaBzmuY5pzB6jRrUaBqvcrUZdVsaKCummpPqkeULxVUeReLEtlcyBVzn5sACMAKDgaTJ57m0C19tr7WKdZTgVFyjpZ4ZVIdo5ECNIinrgj5LZ5MwGCVGCq2YrpQYaxcpjWMl8j2BhY7KisjoNrFe+aj5K+N6h5e1OHPVEREc16omt+l2pUL7nKesR2ccCqOz9AkZEjFlGCcLkdYHjSFPeN3yRNL9ZbJ6cIr1CvcY5BIxZiFheOMBgDhST4/qIOdJmbkmHU2TU8mDHymeEiHWZMBEKacaOJSK1GwjkC1XvcgWKJpXPQCNkKivYiI4rRYaunrYJqk1BiUtzZiXlnCjKIyEgcV+PxJ5EAnA71knkuFTZa+GSrtUM4SMwwtKIqeB3Khs1ADEkD3DyChS2UwQxOuttl6ocXpnXGP5PJyayrIrnOx98imPYSxKUqsjVT5AijM4TWo5yEOqoEMU5CqrXMXSnJtykaSZnMqhi0kSLEJSWPQQk4bxg9N0BjH302d17OrLgtDcraltgqHxHc2WuFNC3AD3apI2jZAxPXAKORkAXvOOtvLu9t5cY+08OXkjW8EO8g6+SjUK0Tk6xmx3E8g/JwJh2uVioiMVE7868bbEBWFBHKDyV3Zgqd4JZUUEgnI7YnjgHo5187Piu1pq5TIbaw/wCHFF9QrMU5jDyGQKRgfPjgYyT4GnK+nXBud2fUxsvtTBuJtPBy3IYmUWsuzrjpO+xbePkZ7Y+BriPUMu8jY99jilI5rQe7ZJI1WDVjnFtDZJqd1WmUn2l+rSodmHL40RNWeOPBkMJjVv8AaXBIIGoe/U/vyhtPpvu+5vTw1tZR0FRaaZKedPZFVuBf4MhcgBXjovqzWMgyZDE0alQ2RuH1b/XDzRo0aNGjRo0aNGjRo0azafW4wSdGz/G89pmgES+2lfjk5jKwcw8yxqcuc+pmf7bnONCS4QLyOQqjhOeiscgxo2JfUaArUU9UoHyo2jkPHLNwmymD3kjmfxgffoA9Gv0P31Gobpt6peVkp9zwXClU1DRxQpV24pWKPmAizLSliBxDSYJ7JIzb1Fvm826bVzyscccUMY5XVsFqe9aQjDxnMADhWCciBCsRj0c1GN5c5fxhiSQs55ZZicEYwMDOPxnJ6+/WARrrAlBa6ekE1OrpHgyKPqpnzHxDA5kfJLA82LsMnJYA96lLC9L277U++5G6JjNG4SI21sDVzYsQUiEyUCQhBMbJNwBz3hBHApleMgno1onNepQWatZObcUiJGJHKgDkAR4HZxkAYz12eidRTc/V3ZtOxpaKSS416Fs0sCVDyy+xI0UkYDHgmHA9xnkCAOrKCf6ZgB2y3KxjBj1tQcWSJXNQFkN74EixiI+OKwUoSR2mI9qqVAiRVaAMtCkVHDCJHq4tNRFCyKvMqQGIVWK5HMMDgkggns5AYfEHIBheT1G29dL3HWTkUHvYkgPuVCQyqshpyJFdkQOoQs3Ec2T4nBY4jDkdV6lK6tvcwra9s+qrFCCeyZQjkXqwpZkF7iF7ocp8RRvUhk8iinS2hb3jMA4SuwQ2uvw84VmVPk/KPk2CcA4ILDiPA/qI+2NPOTfHp88tHZ5alIZ51kkgaCseOkMsaljFKUkiSQuOORh44y5CyFwQGfFbZhkr3Udtk5z5U+PBtBVj2V9UCGB8l8L28OXNiNIlmiBdPIIhSuKpRDVqDIIi50pHYhGdi/EMqkLHjz2pPhiO/v5xjORrFNuG2Uaiqp6NYrekktPJMGnqnlbiJOckEchzTdiFW6K+QSSccdbtdkVEw0rICz231hDYtPOLXChR5BTykql8chjpde0SOPFlGJKE2IyDMQYnx/AdqZEtDoS0vMOwDLjwe+IGR0D2p7GOPnvWnc/U2jrYzT2t6VqGBmWqh98yOvGL6nuM8ZScrIgCSF2kTLAhlwqMiwTL8WwgIItnHfZnngqoIK2DEOGeWdaohStkyoYHNhRoYyyysgxRNSWkcZHPYr0VXa1PDShVfnI2FQKAwYlh/uKjAXBPx7BwCcai5PUCkut9YujpTrC0zyTTSxtCkUHxzHHIwMrysI0MrMDGG4BSF1cX9DLB4Vj6i/Upld3EDcWu12323eL4tkMjl0iCm4Ntlk/IggArGsiSjRcVp45yDaj3x/IrXNHNM17t2PRIl1uczEySUtJSQRMzZ9oVDzPIFUHiCyxRgsBniuASGI1VX9Ve4qio2vs2hp5HpqW83e83Gto0bCTta4aGno3lIJMio1bUsiucByGK8kVhp91KGqOaNGjRo0aNGjRo0aNGjVGv1pIDXUOzs8gHSo8sOd4+aO1vyp5i4vOhSWvRWuaSI6CcjOFVqMeVzmoid2xr6joTSUTL2xM8eD4/9tgT+/TY/wC+B5vH+iOpVdz7lgLKhjitdarsR0sRroZEKnphIJlU+GzgKcnWXCmkwMazQDa1Y09PIiWI/cKxXGGYhekZw1a0Sie0fjIqKnkTs5XNauoLK4kwDy7GSTj9/P7dn8d5BznXXyWaesss8lT7lP8Ay2EDCMlOHtiMmRScsGDHI8lSAVByDOver6lW02wdRVUeeY7EyW9uqSlbfxIdhMYyPceylQ49NZnqqjJJ1ZawQ18eyntDAKyHEn1ZHAeWc5NTZZLNJWW6KerVoRKqAKyHMkQRQkgy3xDdhSAf6eX3GeInrx68Uvp5vS42TaAp9yVdtFwcOte8UFvrzXVBqbXUfTUU7NIkKJJLnIX6hIyAy4FdcX6iHqYzmRYW+w20lfjWCJYzCS89vD1GH0sWRMkOe513mudFyGhsT+YqK20NXUjhCVkCRVBVjWtcVPYKGHIVC7kli5Zyf7llIAzgdEY777GdVcr/ANUnqfuy0m6h0tFMvCCGCmo6KgiozDmJ0apuv1cRhh7d5VaMOcHgDyGlNkHqs9ceNbeXW6lndbL7q4VQuYmW1mAbn7X7iy64UnlrXSarb3CseZaMFIeJtiGFaSJIwFLIc1BCUrN3+E0fAqKeMdHPBjnGSD0Gx3k/sO85PlPt3q96wLSVV8G547jBTRxz00FNLZbo4UEAKv01uhYgYDYScqo5EYGNNPhvr6xatupVFvltLZ4BuHYOiSIcluKS6aeMOVQRijyIVDOLLgVdPY1U5hYN5ZZoY4wK2SSA2CELCo9TtekcloX9svkqWiWQLyHEmM5jIHRKZDZPnJAImWz/AK1b9aKa3027rQJYZVpVnaOoq7PKGHCaIVtJKK9VjEpVnJmgEgYuIkDZOg30pC2SvdkIdvElUuSUFyKJemBfrHuJ+HWk+shvJBvTlPNmguoBGjrZ8WRKcaPJiJEjEfGBHcpTW2noYXgkUMFdmDTKGwfsQW5EjoAHsjoYxqSa71Mrd/1Ft3LYKl4vq6GBmit0wjLI6mSajkigEcSSwu8gmwg7Lu4OTy8q82QqWT5kWTVwf8OQCyMlpAwVKyOwcgcg75z68Q3geKQ57CNCWQr+/RBDf8rrWaiQMysq+0uZYwmQByzklQP84yPIwPGnTHvGoNPHUx1E310y/RVrTAM/8rgI4hMzggqFKk8PkucsMjEufoRVYpkP1nZyLqobPe2gxGK5OHK6Ji2JCnxkU3/UR6gyMR3o5U6KdERqfpNjZKhnvk/XyrYYAR/ywwKV7xnP8w5Hf5++mp+pGrcn06tzZ5Q7YqLjJk+JbhcJFYFftgUgHQ/YkkZ1oD0/NVi0aNGjRo0aNGjRo0aNGqkvq74g/KNpdpHRhjfODuxHq4rnl8L2OtsduCOQRUVFYpPt7RkT8keNzkVFRFRWLv2FpbbSFRyK1qrjOP8AiRuP89gZB6x313q136Rbyto35fWlYrBJtmeWUgBgBTVlMckfgCU99YJGCO85RI+y93PvtwLJKSIOuw1Mjvrtse6UEk9XRwrSzn1oTEErPfSgQnghFEqOaphHaxWi6rCNBa3rbklMoCqamNJGzgqjyBH4gjtuJJGcZIH4xrrBv31ToNn+nlXfS81ZUQbbrrjRUjUzGOqqqK3vVU6M8TZSnkkjSOcsvjmQ2caz++obN7vcHdrKrWShCpGt5zI8fhyDYewke/tZwYpnkHBLZTpRJcuKBPGIpHqwhGs7asjBBDTwRU8S8YoI0iRcnAVAFGfHnGewD+dfm93ReZL7dbtuu6MrVt4q6m5Vk6oY+U1ZM07rGmDhTK+BEg4EkkdkE2AYjk2y+73pmh4JnO5OK0e/u3eMS8b2ko9wsNijqA2UzI5F9X0MK9hFlkAzKKqwF9gs5GLyTkyVbBt3NWDHpnkyR/EqjEBcPxBA6ds4JOR1nAyftnB++oko73ZLzY1FVWxLc6ZZUohVwKkctHT1cklbb3bP8pZYWV4XeLm04ZWbEcZLi+hK93l9Mtruhf5tdZ5U4H/gPPa/HNgK8vnut6918ooko6stJttDimvDU9F7g9tkOVSaunqQ1bEFFkSTuQTBgVZWLADnlhkEtxBwpwScE4yQMDvvWvYt5T7dFygjqljt7QXBKK0IzNcrjXVUDU9FGlDGzyU9FRlzPU1XtqPbCgPI2MVw743mbZjmEGRupbFPkmP4nQ4dWVpbV19NxzHKOOWLWwbW3dMtZNpYIz/UFPOtZU8jC9CjgqNkMP2GLDMmR8cKCRn7nvB649jz/gDjqPLjuCaup4oblLzanlSP3Uk92RlgiSNYH5GUuIVAIeSQs5yXAbKi+L6Em8VnlhNwPTvfQCWFWtWfMRTDEOeVIyGoeSXFHIlFc+QVLKlEeP5zuX7MuI1EOCr2XcpsVPrkV0Rcjix4up6DD5PnJz/uyARnyMYIGrL/AKdvUCSOtqdulsu1KaimqBnlE1PxibmORVkmo2cMvSq1PFjPutq4r1Mbo3uBxoserx32Nxf1xa0z2PfJiwHtEqNc4zU5E9WBUIxlajmdPInPwjm7XVToQsajmV4Ek5AwOPYGMH7DJH3Or+7N23BdE51VUZIIp0qQOAQyOG5FQOi65ILMp4tnGRjGp/fQ6wH/AAV6Tcunv7Ok5lvbmV/NM4ThKaXEqsex4yojuVexjqfownK9mt/lxxpU2dTmCgqnI7nrpZC35wkcf/bhjPk/fUc/qCu5ue9qWEdRWuwW6ihHLJEbPU1QyAAq59/OBq5nTu1BejRo0aNGjRo0aNGjRo1BD6hlLAn7HVd5ZeBsbDM/x/JmlkcowcoMW0r4a9kVEYpJE8Ykc78U8nDueeFbW6o1a2B3AIgqI5e+uwrqvf2JZhj98amX0KrZ6bfApacuJLta6y2kJ2TFK8EsuQfIEcLMR5OOsedZB85vrDbTCtwskLSXV/OnsikfRR8gh4ysQ1rOHRWVtMtbOlyCH7etdcQppYTK4bp0FxzOlxQRyKsR7YpIam7cJ5pYGdxURgDPuzU7CT2iWBADqpA4qeQB7Guif6h913Sw+ls1ZYbVbrxDS0r2K5S1E7xfw+03inktwuUUcK/zhSzzqJVkdVjZ0Yh15DVUuYej+2bc5tmWSYJBIaUTLcrvYlpurdlNHdjeAR91p0eJDxDA6B8f7hip5RqSPaTYbrF8Cya6QKNEHMkTSW5eP3IBKj7O3QA+4RgMdclwOiNcYq+3xx8swwVMsUE7KZJKgsrRQwTuWjUxhQ6SJIEUBgFkPx9sAuyLA37fQc/fc4BgF/TenkDXZUs/Kt7cpRK4lxgGP0cjEaVM7pi2qS7bcGqeCUT7Oypp4kqyOV3WLAN9cx9wGVRzZmLAYKhgUxgHIYAg4wR/bVTb1UwG/brontFqgprLUzQ1PKvuyQxtHW0dvp5qeFa2M8KqorIHcIIkWP3JTL8kjLgUm7Webx7aX8+NhNICFH3ZwHY6HilJufvzjIMotM/kSoOLzizHbhjJV0/YAXTo09XPhilclEXxGZrVklDe6UBKo8cQCs4y0rBVPTdD5Ak9ED74Gm/FcJ7lBLLb4acU38WobMlM1zvcH1FRWCUwlg1dJEIVaJxwkz0V+OM4auR6SMWyh0kdBtti7bFtxuzjNeOn3Zz2vn2+dbONqZeY4bj8LKqzJkuLezgXcedh6y2wx5O9pISug3fWpk50X5cVHRYqSJJO3UKeg/I5JOAc4IzkKdaf0ktRI1PTUdIBUSXmlhMVfUrPV3GxrFJVUlGk8c3KoljnR6ISYWpUND8anhE7zeg/eVvoX9QmNw6TZvKcyufUBHrsHxqgXc/ECWYYeT3cmHW5h7VNv6ybGx+bIxyXKC+wbCtGVgBS5MOFX3UQ075miLKWfpUJY8iG6XmnxAXoBwfOW6HWpW9FrnX2PdtKsFrasqrvTx0NHRTXKmpJp4q2sRYZIcULMTIacvDE6wySQYkIVJU9yzH1j7y/c8xlHpfIlZEu1hlKcitFJccAIx5cRpXx1SKSWcABukNG6ShF8DO6ddMK6zKJZWjwVDEFs/1EgfIZIA76AOR5xknXa708tLRWWnirOPvtSEqg79uNGLcSePyIVGbkAGAxyC+Bpt+mbSrSejnbBjwNASzk5hdka1rm91s8tt5An/k1rl4jqJjVVOerG88/vT722vGz0p7+Zlk7x/vlY56/bH+Map56nVIqt7Xl1YsI3p6dSfIEFNEmO/8A7uR/uSdT40u6YOjRo0aNGjRo0aNGjRo1HD1aYzCy/YPPKOwAkmJIiwDGGqJyiRLOLJR7OfhHtUaK1V4Tn98p8aSb3GstsqkcZXgCQRkdMOyPuB+NPX08r5bZvKx1sLcZIqo8TkgZaN1wSO8HPf58DvGst3qs28r8jxrCqi3cMMC8wKbV3MOvqgVNpCYyPLpClg2L3FiTJxkcEnnkhYoyDVHsNwNUhaWpFBW2muVVZol5NER7RPtF4gof5N8g2WYrkDrBzrpNaLKd7bS9S9oSVElJHeHkoYrm0xuCRLXilr+ZpCYynsGIiNBKqEsrAgAqYTA9JcncvFL6z2CucwuN4bXMrG8y6v3MzfFqvHMqNcYu/D5uT1DMPxHB54JRcZkWGI3mMVyGLahyIb+CxEnyJD+sm5qa6PIkyCklBjKAyhkYZZFPICM8kVgMEEfLonOueH6h/wBOO/PTT+HXrYLHe8ddUTLfaWsjjoZaaJabiaiGOOZAqyqs0EiwuzzhoiOPsyBoX7lV+8+xNzJi7s7d1uK5RTBq8Zg2N831Ozzy8ZmwW1Mosuxp9xwToEJ0OjrYEKJOjtW1gRIDoaErq2M8LpjUyjopgKAjqXYMOxg4YY44APxGRjsYGuW9bZd0TblvEG4rQlgusNHVVU0da24KZjDwV2jic3WnzTMkcawpxLPGsXFWjjVlTNfnEqRHuqijg4xVw72+i2NnDxpPU+CJl9pKCrUvZ0H/ADbCc9iF8qVGk2FrBedyPeRJHhkI8mPgT/yglhnisvFj+ThgM+RkgA9jOmFbLrmoqrfBDSKrzGZliqdyRxVcyozNPKJLw4llAZ1V3USZLEOVYFpNbY+kb1eeoFAX2LbR35autuY9hSZhEzDcehkJPqrht2G0pbzNz5VW0OTJcC99IWcSPYrPRky29wJ6vJ4XEbgu0YA6GJJGbiO8hPlxORgZIJ776Gn9tfZvqFuiqprvadsVktPS1ayw1slVc6WmeSGcTEwVVZJKkc7TANIpZZPdb3JAT8tWRj+mJb7E1OJ5/b71bhTh7XGHkD8auIWL5FGyC1rcVyOipiyb4FNjN9FWhFmWS/Zoks96KuHNBHQslsKAsJNq7kz0lSHUpkEBg+SpyzgMOA7yxJUEgFsEnA10W9MvQy1W/fW0bxTXyrqXoJ6OsmtNRTUr0k1TBTT0xeGpQpVxwwfVVBpjP7vFXIKABOLe4vhdBmFbAvCNlzrSlsR1f3yVBQh7OEzvJUEhDmKOK4tk1kiURoXOU4uoEAFWNRnNGk0LMGOUY8m4gEjzgglgF54JOOgOsE6vdfJa2w1YpxEgSqpjH9OrlRC5UKpTgAWIiysa8uJBPLJ1rh9HtKXH/TBsbVyBNDKFtzj0mYxqqvEywipOl/Ko1V5PIf8AKtRf6pqTLKhjtNvQ+Vpo89Y7IyT3+Sf8+dUZ3fOKndF+mH9L3Oq4/sqyFFAx9gqgD9tST0qabmjRo0aNGjRo0aNGjRo02+70VkzbPNgEZ5Gpj1gZWJ/z9uLzdP8A3dOE/oq8/OtO4KGoqkEZHsucYyTgZGB+cjSxYHaO92x0IVhWQ4J8Dk3HP+M58aqI3N9PWGbyYysSzNYQj0dhNXHxwhKyRWiUfkmV4WtXmQOzKoVbJXuyOzujBq5znpGlxstPcIDyZ0eF3NOFA5IoxzjGP6w7YIJ5BQT0D2LabH9V73su6rLBFDURXOmiiuxqJcx1MmTHDVueOENGnMmNQDMwXkwCgN621Hp7oMQ2Ui4qPBMZr80xwbZEGcoY5JUuxDLcP3y3ieMsieSA+V7YZzpXumECkmO1jHdc9mtkUdBDT11HFFKhYl0ZWcuCxSQypgtj48lBKgErgnJDW9Wt/X+67lu922puCsroq1FWlp51408cDiE1FOlDUFoEbj7ns+6uRIImZ+DMC3Gd0W+2YZHEhZHsRs3mm3lRFgQqXFcqHBvbMdmtj4jXyWF3AsGRmLXqLzRYwe3kA6yQ7ml8LHbS+zGvGN3GBjvkcjBHYzjl0Mk9kdHJAxUPccvqHW3Az1+09t3i2FTGlHWtTST/AFEsxE9SJpInEKGPIaGFFhIUSgkERhc1+y9mS22jfM9MGzVTQ3AZo9yYzMRxG4k4dYMmGSts4EydVqhI8KGIJ0CCO5bGWZfE+MJrePHkAWTMjluYCZP/ABB19xjGRkDx9sY0nUe3qh7jtyVvT/alDS1UM43AsduttQ9qqDI4hmhklgIkjiiCH21QmeR+iiDS8wi/9R1fcU2PZRtdii47FdXQJ+V19o2AV8R/iecsHHYDXV1ZGgBI8II7COGx8F0VzPJNjEH46JxZlZuTZwoB8E+M+c4yAfJzn9g4bNXb4iqaO33KwUH0EbRRy3SKqSOT2yg5vFRQD2oI4i3FY1JCmL2yOTgj1/UxS/e9ubaI85I8FWOWYoRq87xqioxi8Kiijtfw6SRFRWBa9U540hXRJHpnVQ3HkvMABmxnvIz9ifn34BOdWH9Na6Ci3LSTSBGmCskBkbjHy7LZJzmQoAIRjuQgZHWKnNotuFmY3k1hSyI0unsYdjIq5QIxQMJMjK8L1YN4Qq7h4UYMrRop/wASN5GrXOQY6eQQVMiuOLxMi4+I54x2OjgkEAkfbPY1Om+t1U31FvinhlSqpaqP6mKRldhA3F1yVZiAeWcFsqCytk5A1Lbe07MfwTDaRiI1KnF6Gv4ROERYtZGG7hP/ADIupYpE9ulpo/8AkgiX7eQig+APOqM3Cb6mvraj/wCvV1MvnPUkzuO/7H7dfjSx1sa09GjRo0aNGjRo0aNGjRpMZrDSfiGTw1b29zQWwev9e8IycftP58fzTWvVLzpqhTkgwyDAOP8AYfv+2t62ymC40MoODHV07A/jEq+f2/Oq68Poi2MWlPDlqCI2JINOEJjnl90Yw2KRziOd1+PhRua5HI9HNciI1dMiFSREwbioRufQOGJA58jnsKB8cHGcjB1NlyrI4JKuOWnEszSRrTszARmLizAKqYDDJyCrAgr2DkjS4toxaFr3xofe0cCZAqhneYcM7hleaG2ScYjujhLIerlN4S+Lu4nKuTl20/xAKAF8FUJzxLEZHIDJCsei2CV84xpEpZBVOBNKVp29maraNUeaNCqrN7SFow7ImAyh1zgDrUWt5cl3nxrIdqJ8HHoc3GLXdTbmgumVxnSLGJGvpsqNkFoUrXCF9lqBOiNf5gOPJMrzqyMILmG+w9QjIyRq6M0KyBSSR7jYkcMcAJGAo78kk9AY1lMFgqoK1Gq5Y6qKkuk1OZVVIX+nhV6OELhj9RUuGIIfigwmGZhxnvZS0rcdk2hWOc2BBkzHcJyvSOF5n/PC8IiMcqr8qic9kXhU1nnIQSSHOEUueIPIhVJwOj9h+O/yBg6aNvhNRUQUw4j6qaKBSxCqGkkVFJJHQBI6J/8A5qOW025VnujQyMkkVLqmKaysI0BjCKYciPDkPC2S0zhj8jSKxW9xtQL3o5wVePhdaNsrJa+D3mjMal3VVzyBVSQGDHyMADPjJ6J0896baptq3NLXBWitkWmgmnbh7bRSzIGaIpk8SuQQDhgpBIBJ1Hj1tW26FTgtFO23CsuQHI69t1EeJpmSqopWjkCINXJ5GdX9nsTl6jR/VOUThC3dLeYrX71kjjlrEqafMcgyjQGQCUEZBPxJJPnAOO9KnpjFt+ovtRDuJ3hp5KGo+mnRirQVKRs0LgjwS4+LYI5YB68p3E5dDaAw+BXQ41bLtXVNaWsANkdBmsp0MRhtjNRv4uUvLFT8vCrVXhF66zJNHLHSKVWKeoEKyRHIKszoHCqc+Mkjr+nAIHnWvdFrFmuUk08tVFA87xzyMZPcWGKQxuZCMZ6+Xyxzz3nvV8EYKR44AN44CEQk4/SIIbRoif2/HUngcQAPAAH/AEGNQWSWJY+WJJ/uTnXPr3XmjRo0aNGjRo0aNGjRo115YfcRZIOEd545g9V/TvKNw+F/svbhefhP3r5cZVl/Kkf9RjX0jcHVv+Vlb/8AEg//AK1CzDcdrcYkzRsjzgl8hocsRnOOJpo0lWvcNyo5ETuPhOr+qs6qifpdMyFYoea8HQliGBJIyrEEgfYEgnrv7kd6kSvudXcVgMrxusaAwsqqjhXTIRiPOFPnBIbOCBpzTOqZguklgSsVvVWHFz8KifHDmqifpOU/twv61s+5GSFyCT0Mjr9/P/f++kgGaNvgzAnvKnB/7HI/x9j++k9Ng4pZPBCIkRfamHKCNGt4GUT0cMjWqidXNciK1W/+v7419GpjAPYX8/fH98DH9v8A416IpnPJgxJ+5PZI8ee2OSP3/GlCX7e6K8CkGonM8bkd+SKxzVaqK1UVqo5FVFTjhUXjjjWq1VCST7oxhlJIwDnz9gOxjvH58ZOfuKGoRl+Drggq2PBHeQfz9wc56yNIGNT4/QxQwatkWDDjMc0MeOjWDa1z1evVqJx+T3K7lE55VF/fGvmOopol4I8SqM4VSBgns9DyT31jJOfxreqpK6tmlnmkknnkILvJlnPFQoLM2f6VwACcAddAaQeWpSzYhgmIArXIqua5vZEXhUR3HVePhE/X8/0vHGsL1UP3cHvJ6J5Hx4xgf2+3/TXkUNQpV0VldTgnPE4IGRnIwPyR9utRf262fqrj1G4XeRpRHOFPY4MLu5sEAYBGWcuWgk4a6S5kQQBrzyzv+KJ8qrfioaau3Tb6uN5fdjVk9rkwgEYIaSUoBxMuEVFJBwM4xknTsrb/AFVLtC4Wto4ljkYSSThVNQ7sDFFCJP6hECzuQAQSByzjq6dP1/35X/5Xn/8AdS5qE9fdGjRo0aNGjRo0aNGjRo0aNGjUbM1r1ocjnypVkOFHuDvnwVIg1jo1GBGcSK5G+IjCscR7FXh3k7tVVVdM+5KKStkM0/tx1LGSIMPgelDqMD+oHsg9nl1+dO+2uaujRY4i706CGRR27HkShPYJUqQFIzx44J676MSzBMjMJGuaiaJ6fgURRGE/9ovUgSvYq/8AFVa7/wC9av1EbDK1NOyn+k8kJOPPYJzg/jx4PjW01PMjkPRzjOPiQ4wevyAR+TnXkABP+8eVEq3icNV7s8iqiovHPZUXujvn+beruE44XXjSF0JWanYEdBT19vJzn9xjI6OveKg4ZJ0HEqOI6AwQAPxjro8j50pihkK1eWwUVPhvC9lcvHyqIifr+vP65/fxpNaSQsQWpgwyc5Y566IHkKR0Rj7azRqoHIGoHIHIbyPOOs+cd/EZ6GfOdJKyU7WkVEqmfCp2cq8/y/8ADwnxz+vnn9LrBJUsnmakUYIABxjz/foff7jrvvW6kIcD41B6wCucgf2YYz3nvP2666ZDMbB8eOYhD1SIjXK5WPa1P6KnKq39/CIqqicp2+EXSfNXqquWrKVesYXGQSM5PIn/ADjJ+2OsaUaekDMpFNUkdAk+MDsHHkZPRPnAIPg6VnpMoXX2X5NnJGAk11HDShqpY3IrWXM4iFtUCqKqEUNeyOEj0REG8isReXO0ubKharqqu5vl4oQaenkI4jnIQZeK/fCBQTgYPWfI0h7xnFNS01uwY5pn+pnj8n2kyIOWScZYs647wO8YGbAtSRqPdGjRo0aNGjRo0aNGjRo0aNGjRpCZdiJMiKKQwkYviikje0ms5C7yPR3kGVBlUT0VPnsIvbhERWcfKJdbdPVvHLA8RMaFDBMCqNlg3ISKrlDkd/Bgw/BA0r224x0avHIkgV3V/chb55UEcGQlQ6HOcB0IOeznpqYOzVVUwW18bD4TI7Ee1rID4jRp2c569PIaIqIrnK7/AG2/v9IvPCILXUKAslojYA9Cnkp2QfniJXgYDyMkd+cdjS014hkJcXKYMQMe9FMDkAZ5cBMFz46bP7tjAZY3pZfE3Nqc+pm5JWAhmPJn0Y7Z5KiwIWvPAawkBtoUDURDMkr1Zx7mOAvHZiqqVPtyRqyKrht00JUn3UBTEo4FQvCOcoAScse+1U4Jzldg3Wi2yot81ZTTLIF9mVoHWWIh1csHamEmTwC9k4VmBJB0/wA7B0M9GvxqwapWv7EHJCwYUGxqMa5yyhPc8qq7hWM45+H9U+VyvYlmYNJZqjL55FWjURhQOIIMyliTkdD79kZ0mJe1RQBc4cLjC+3KSxJOfMLKAox23ZA8514dltQktqoLHrFeU45WfEbzz8KvD7BVT4/fx/2Tn4XWfayv/TZ58DscpaZCSPuf9Uf3x1k9DPZ1nTcfBjm5xkHPiKdiPuMfyMAZ6x+Pv3pqsj9NWS30M0OuiVte0xO7n2tr1RGoifHEGHPcvyiKrV47fP5Jyq6122ZWygLDR01PhuWaicEZBPf8qKY4OM+SegOuWTtR7xpYjmWoqJzwIH09OU8+PlJJEOuv9pI7GPGn29P+zp9msTsKabbBtbG5u5F3MWGEgK6G4oRAFEhtMrjF6DEjjySIH3BXdmxgNb1c/LFaWtFI0DyLI8krSv7YKxqSoUKoPbYAyzEAse8Dxpm327C8Vv1CxtFGkaxRh25yMq5PJyABkknCjoD7k5On30t6RdcZXOYMjm8K5rHuRFa9yctaqpy0aOe5OUTlrGq9U+GorlRF8Pg/2/c//Hf/AE719IAXUN4LKDgqDgkA4LEKOvuxCjySBnUH6v1G751dTZxM09PuUy8kj2N1Gi2eJY9la4myKycaNRS5DJcW0uJUV0b2s+zlw1a5IxSKGFGIE4o7Ujvd2iR0qrPO84klRXpoKn6cKHKwMeYkkdWXjJI6kYUkBQQQtjq70m9Nqyto59u+qdlgtEtHb556K+3SyC+mZqWOa5QRmCajt8M4n96lo4KjkPeRPcqJkljaV7tod7wbq1mOzRYXmdO2/rbeyDaS8etR4wgKm0LWhVt7PiV7XPuhDbaVI2RSjNBIjVkuOMjEVrbdVuEcLilqohMkriRoZBT4jk4DErqmfd/rjAU5U+cg6jrfnpxLsmtu1M+4dvXD+F1dBSSUcF1oXvJlrqJKuQNbKWoq2AtzuaKvdpkaKpQn2RHIja//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgAAAQUAAwEBAAAAAAAAAAAAAAYHCAkKAwQFAgH/xAA0EAACAgEDBAEDBAIABAcAAAABAgMEBQYREgAHEyExCBQiCSMyQRVRQlKRoRYzYWJxgsH/xAAdAQABBAMBAQAAAAAAAAAAAAAABQYHCAEDBAkC/8QAOBEAAgIBAwMDAwMCBAYCAwAAAQIDEQQFEiEABjETIkEHFFEIMmEVQiNxgaEWF1JikfBDU3LB4f/aAAwDAQACEQMRAD8A38dHR0dHR0dHR0dHR0dHR0dYsVdivz8dHR1mx4vn8dHXTv5CpjKVrIXp469SnBJYsTSOqrHFEpZ2JYgegNgCRuxC/J6+WZUUu5CqoJLMaAA8kk/HWyGGXJmjx4EaWaV1jjiQFnd2NKoVQSST+Afk/HTOac7wwZHUF7CZqrVxjIY5MaIrDyWbVOVpilxIZFU26ojWNZZqfNq1jzQzwgCJ5OaPKV8mXGakkQK0Slhunjaz6sQob4wALYXsbej0Qu506h2rLjabj6jiyyZMbEplExqseNMAlQSSKx9GYsXKJOsYmi9OWJmBcK9UE8NmJJoJI5opFDJJG6ujA/2rKSCP+4+CAfXXX+P58fz/AJdNNlZGKupVh5VhTD/MHrl6xY/I6x0dZ6Ojo6Ojo6Ojo6Ojo6Ojo6Oundv08dCZ7k6QR77AsSWdv+VEUF3Y/wDKoJ/s+uvpEeVwkal2NkgVwBXLE0AOfJPR0lLGsQVc0aLOo/jNck8CMBv7WJFeRgSPW7IT/ob9dDYyR162Qi/lEpiD5Fu1KLHkU1V8c9bI4nkNBT+OBzZ8AAkXz/PH/i0rkNcXa9eW3aylHGVItzLL4oo0jA/oy3Gk3JPoBUDH/hDHrQ2Rp8YYW8hUWbNLQ5PIK8V+fgf+VKLSMyaRIosd5ZJK2xrbsb/iNTXPB545s2OGxg7zaXzOROJra0uy2mcLuk0tarzb0sZsRQRohIG4HJT7DEgEHpMi7k0ueR4cIY88sVe2ORJGU0fYSQQX22QoYt/20AS5ZuxO4MTEGdkaYY4ANxLrvcKBy/pl95QeCQu0kcWeAtiLHI8p7Uvon93IWpCx+ffOdvn597bD59DrrGq5ZorjKgINbgBYHPgGxx5vg/n8IowItvvlF3/8cSCrAJBGywOPHJu7/PUWfqg744XtZpiphLUFTIZbVLtHLiprrxynARy8L84dnLwz2CVgpzqrmCYNPwYRbMxu+u+4dA0v7fM+2lm1ENHHhu4jeTFLhZmVixK0BtSRVYLIUYqVU9TX9GfpVnd6azLqOLJkQYeiASDPjxxLEupuhbEhK7QHjTl54yyB4SI96s4Ig1qjvXraHtPktQ9vdQ0b76X1NpizojVFlak+cw01iyy3dK56hNI7UGliaCC3JMsuJy1Fi9GeZF416992/UTvLA7HzcvtHU8NsvE1vSm0DVs3EhysjEeWUrkaRqeLK6+kksZTHyZS4xszHcyYsrMF9OzOhfS7tTK75xtO7t0nKxBqeha3F3FokEuRDpmpRRRq2Nrum5MKj7v0pPUnx449mdp2WtZMSbrllr2B+pjU+coV8b3DxOR0jqQhHcxJbTT2Z5KC97BXSBXliduTTU5HNimwJPkgKyGZewe/9X1bAhh7u0p9F1tFQy1DK2kZ6OoK5Wk5cigTYzk8wOfXxzYkDJslkg76ofRrSdKypcvtDUMbXtFAZVRpoP6vpxBNY+p46t6kUsYUBJgBFN/btc7FmrT1rekjhmjykxWYDxF5I5UcAD2pdJYn9fyBOwJ+RsCJfjyopY1f0IJAwBBUMhYDzTIa4/FWeLN11XXI7fWGR4iJY2Sw/JYoeP3K21xzwD+CDR46VtDVmVfjy+zugfKMv2s7j/2tGWhZv9bKN/8AR+OtqSYMwAuXHc0Kb3rfzfAYC/Fn+ObB6RsrTpcckgh0BoGju/PIr8fI/B6V+L1BUycjViklW6gYtVn25Hj/AD8TjYScfkjZWC/lx47kZmxnhAexJET7ZF8cn2hh5W/A8g0bIPHSeQQaPBHXvdc/WOjo6Ojo6Ojo6Omo7g18vXsR5mCrJkMVBWWOwkDr9xjmEjmS0IHI89d0ZDIYiZoym/HiAelLCli9GSAt6UrsxEh/a4KrQZiTW2jwdq/gjrfjqjSLu5IN7DdSAf2rV0xo0Tx4/nprLOaSWu6VMgak+4BWdSVYn548mQq3sbEPuoG2x2JHBNgS3vkDOGP7xbq/4IAG4EjyRQrwa8urEnwy6l0XyRtI9JxW0AEqrKRzzfJ8+2+W61zWmk0tlbVWrUz+Zr4+9cx1fJu0kdm9BXkkr1yUdxXieRREHjJkYvuCASRwZUDLhztFBBPkJBNJBDPaRyShWEcbmgQHalJu+b3UOHj2/PA2q4iSz5OFgSZONBl5GGVLQY7yqHnXcAsjhfdsACXzQqjAVO4Wcgmku2tD6dSxDSkyEYwz26s0s8So1uqkhmlWObfyjywGRzYgaJ4po2/ahYdw5UE0wye2sLGlSOfIT+mB/UeWID1YyRuAZhuAdCzNLEUp1aksy/Z+C0UceP3Nqc0E2QmK39SWKWJIpNwhlZdqNIguMFHWNRHKHVo2Db+ex+oLr3SWIhx9TtP/AJ04yEQNkJ7GZt3zWBMVb76zWpNC00ZQxvLKqicBQ/ilU89C/WCbFUInauo5oiULJOTkuQCWRXnkjxSqva+5iKo/uV9274T9MOh6tmPkzd6w6euW5dcWOLBhxxIQJJRBFJk7/SO7eiJu9P4LKQFYa5+oLr/uZYyEeW+nDGZ3BYkzHKW7dc5H7QQlmEK1clRiexJ40ZkhryGVgJWMf7ZjHyv1Kj7mjlXI7EXOwcTechsyBMlYKBIURZEAYPwWCIA5ojare3qSMT9Nmg9nRwSYH1RydN1HOEf2kONkSYhnDEBpHkxMtlQFiAWlURqKtiGDCSxtXotIad15pjtLTxWHz2Oq2s1g8fpXHS5HTt2IyzxnPYbF1ed6o4dBBka6W3x0xTmsCObHTtfEw9P0/D1PTu1cbHw86GGXKxINHgknwpkYvG2ZhY0JeWIE1HkKsjQP7iEAEgjSL0MrXdU7d13vXIytQ0rKyMfTs/J13LjxtTxpNsUp07UcyZVx5wQ3q4kjwpkxWFMpBiLnYq5pp8DWzmoe5mg8Is61ZJacObopbxVySMpFXlr2JqViZ14Sx/tVVaN4ngcSPE3JwRS4QxlyMrVtNgjbYxRcjHi9BypURsZDH/cHXaUBtWRgdjAsrMi1FdWl03Su0O4s94zOiTTYWQYs/GRwzyxSqs0SKQY3BaU70ZJrXeCrw6Kno5RlGB1ZR1VUSRTMcelyxHHLHspMv7cUKu0gf8QVHLcEeulvTzjyhThyx5aLQuBwwDncDfpkRGifAHBsc/LA7kaTELf1LR5tGyGUhFypceORkc7qQ+rLKFClTZFsKN2eZB1KVgCB0hnhlYAcBv4zsd/6ZuIUk7ADbcEbn2Olg4bzKp9kQ/udz4Ng17fJ80SwBFeOoyn1XHUSIQMjcxKiNbI4A8EDj83f/UOeenO01h7lierlbcgiSqXVIxs0s0irJEQ7hmURpzPoFixBX0NwOj1BDA2OpMrOBudv7RYPFGrO34FcE7rPTVzGVpmIj9O+QosAKaIJBAPI8XtI/HPTi9cvXL0dHR0dHR0dHR1xzRRzxSQzKHiljeOVG/i8bqVdW/8ARlJB+DsfRB6PHWQSCCDRBBB/BHIPVVHcHuha0RrbVmlpZLdddPZu/RpzSASR26CSeWk8qN+1LJ9pJC0jrEjciT7YljG+qd3Z+hZuVGy5C40M7IHQ2GQkOrGM2jmuSyhKolgbJ6sDpXY8GsaLperKuLlrqGFDPPGwAlx5/dHMqOaKqJEZVBdwOF2ilBaCf6xcXgcr/i89So2I5AjiZIEjdoWbjyZQY2UxtuCR5DswcfiT0QfVDHkUBslGY0SJoEBILAMzEbCB5BJFVRUfJc2P9D8jUcP7zSnmx2VmVo/XcqWUMdqtucENXg7AGsD4pdYnv72nzNd7cWCpCQO5kZKJMjM5PNmKyqsp2JZ3AHIEuCwBJUsTvDTs0O0eBhyHc5d4lUMzckk+w8sOSb5BsEglik5v0+700uSPFl1TLRWVFjEmXJtVEFLtJZtgDCgKG0gKKIA671Dvj2Vp2RVp1MHj5p52M6/4yvVQzBi7tPIjqCXdgWkc8mZuW5J36zF3r23hzHG+1x8WVnO9VjjiT1i25i7KEBbcdxLk3d2QbO+X6f8A1EzYBkS5+o5UUUQ9InOlnf0QAAIlYOTtUcIoAVVqhXCvHe7thYjikK6UeKR5EHKGGdvMh3O8ItNJ7IO0uwGwBJ9bDZk/UDt+CL1pXgCM7qFEmOSGU0SUsuQaHNcAEk0L6Sf+XveqM6rkaysqqrEiXIQbGBorJsVKH9yckkkKK6+rXfrQlBVkrXsbHxQGD7ahKh5EexHJDORECoG0jEKVAHsjrkl+pOk2ssAhaNACCXYFgTtAiWNGsefcSARwLHnGN9M+6szdHO2oPvYiX1clSOCOX37dzWTaKp22LIJvrr1u9GhslY86YPFXLJC/vXMRTM/JmY7rLbgkdeZBkEhlTyBi/M++vj/mBpUrbvsMXeNpJlgG8klvepljHtJ5BJBYm/nrrl+mvcEEYil1XPEILHZDnzyRKoVR7kim2kqKRhtNFQoq+nCxHd2C+VMclWrXDOrtFGGZEQKS/JDKF2BGwjHvfaPkfgg76kzsgRQbFjLEVDsBCgcWy79nAoAeBZF1wjZf02bEjZ2ilmm2gqHYneW3UCrbTywsk1yB4JopyP6hHz2oren9LQTTRULKULmYvByr2pvwVKEaOwkEG4eVpHRl5Rx+IPyA6P8Aiz1JsjHxFeaSFkx5Z5gxUTSc7YvcVkKAXJuYFbAKgk9OeL6Rf0zTMfVNbniibJgbLx9PwwgdIIwSWy3cKyiRgVjCAqwRmDlVBNjuOrJToU6salVgrQxgH+W6oORY+yWZizMSSSxJJJJPT1UUo/NC/wA38/7k9VpmkM00spIJkkduBQALGgB8BRSgfgDru9fXWro6Ojo6Ojo6OjoPsEf76OjqlL6xsZNgu/Wp5L0M0FLUOIweaxE8qlYbCyUI6OR+2kLBS8N+hNDMm/4lld1BlUtBn1Jili1FtysIciGJonb9gNMJFQ+Ad6HetX7wxB3Wbg/SnLTM+n+nx4xSTIwM7NxM2Nf3ofVM+P6ikftbGmVkckg7WUEbCFqp7zwpavRf+cJkXzQOrH0d9tim43HFAGCkcl24kMvuE857FNE7nbvDDeCnuKqAh5OxQGIB2m6tT5sh2JI+Or7WjEMj7HXaLIK2CGAIDFrPIG02aIIrydP6uuQ4g4yedY38c3FqrLD7ijVVA4uXA2/cLD8Ucbbh2Kn4h1PJjEUS5AiVYMhQ2OfSDMAmyxE1kgMxYtSiQMaDMT0/ZdJxJw2QYPVDSxsRkqJSLNl7kXbRNIB+5kI/tFhlM5rDLrccSZe41SCXi0ct2VXAZWAIkJJ2YghY2/FCCV4sQSkNq0+QWSfImdYSAVknYMzBTTGUWdrkgKrjbwWABPC5Ho+PDGGx8OBJZQzApAmylINbAFCEAm3QsWsLR5I72L7o2agFZLkpWTgsUjTBGV0YBlDMXQMxATlKEMZ3YeQFyU0Ss7qj5WQVBVFLTCIKQVDBiSwBawrMw4HItQzdJuVoksx9R404LbkWPeNrftKrtDEAm9qk7ieaoV7UverMRysseRtxtPxggq/cCSpNaQAEStE4IVWCeS0kce5Dbn2wDmws9sYMDJIdx2BN+6OR1KmmZSDYFbpAqg21ULHWcPs7HmCM8ELKjF3l9PbPFG11SlTe4ltkJYkHySKt39Ad08rc+1FuzflsMQJWmMTBVkIkaGszOyGOFwQ8pPN4yYY0EW/Ldmak0io1TbqKyMwUn3HcI49zMgRPDMxvZcaUrMSZnZeKhl9GPGWPbcaoWFsilPUmCqrmSQeEA2h/8R7aups6c1vkmxFhpLHhZKrCFFkEUfADyLzikCqrHyknf8RGp4KAdund23qk0UcjM6JsiIUJUagLuIDqyqA/u9w/bsBUAUCYw1TtbAGXAqQmQPMDLIUZ3Zz7CY3Qs+0bPaQR/iHcSTZ6eD6cqEuY1FhMdXczS5fU0LhWkiIFh50sZBwU2KQqkLzKpCcY1Cqq/irPvtO8mSCJH3jJzzI43qyCQkPPwOVFIGRW2tRICgVbG+rUiabpWpZMqhFwNGkS1jIdogjR4i0b3MXmEZYbhvsk8sReEg2UD/5/6Ekj/t1O58mvz152rYVQfIAB/wAwK6+usdZ6Ojo6Ojo6Ojo6Ojo6pe/VhjyGIu9ptR0bEsBnx2qsYQGbxSvUtYy4FMfwz+K2w3GxKbLuNwDE31Rgd4dOdWIVhkoQSdpZTEy8cgsAxAJBNGurh/pWOLlR93adkQpLtm0vLsgb1V0yoiQx4CBoksePkj56ot1N3CvX54FnMckq8UE7OyiMK+x4/wBtuNiF/wCE7n5A3rtmSEM4IUN4EgLDYu7+1gaIbk0eASdpux1dfSe18eAyemGRGslNoO8kE0Tft2/DA0QK+T1zf5qqtP7yd2jsPUMcCBgypHJzaadnRVHOVjxAYet92IO2yLPLDFEciRveINiKGsrGxLSSOP2gyGxRG4khj4FLseEyBcSHmMShpXZaDMAPTjXeSwCDlitAkV4u4/6jzVSayxeyw3cmTiDu7KxKj2OKnZQG9FfnfcAbIMU0DtvYsTxuAQks4orfBBNCjwRXk8dOuHFeOMUimgApY3tBX3cDmrNgg2ODRrpPJm8ZXPmsWlLkEI8a8QAAzD1y9NudiixhSw4r8bBTxvTflmJL7gWC1YU7qN+1QCCQKq6A4AHWlsaZ7VY1AuyrMOeasEC6HkNuJHNg+RxxZ/HSTpPvJJY3ZI5ZEWvAIGLSSoDtuH4nfkpR/wDasxXbuVUUFiJHaiqE7Y1ZHtiPdfNXyKbceB89LWHhy7fS3IsYpmQEySFx7FYkE2hPBJ9vzuF10/PbrN+O5VtQCQzMyBozLurOGVuZLLvwVV/BgASygEsOuWed4yrQo5k5Uqz2DIrA7zuF7FA9rKPcR8+et2fgxvjvFK8YTYSH28qpBARa4BJOx1JI910KrqxnQH2+oK321/KrTBQqZBtyWSUAjmWWQklyFJ23VCSp3IHTq0F0nV48jI+2DArv8U7C6O4NZ3cWRdE8XR6gzuSV9LkWbFwzksGDbOK9OMhCQoZaAQce4DcFB9t9T5+kbTtOh3T0ZUhsJatouZyd14pXmjR62Ns7ESOAxB57H0AN+I9bjqZ+wMWGPVMREk9VwuRkTOG9QGT0SvkgEVY2jjbZFEXVaPrtq+Rmdk69kSwtBA0umYWMHRYnZZM2JiCiEjhVN3ZY8k8gdXDD0AP9AdTl1Q3r96Ojo6Ojo6Ojo6Ojo6OjqqT9WTEfddotAZgL+WL1jkqaygEtEMpgJpyP73WQ4pVZfRZuPEhtj1HX1Kh9TRYZAOYp3AYf2mSJqJJ+LUX/AKfjq0n6U8z0u8dbwi1LmaPBIUvhzjZ0a0b4BH3Ng8/IIKk9ZdNQxzNkZ3hkm9O28XkIVuLDchdiBxBLMN1324n3sDRzV9Z1nE1WaKMxTYRZysTqd5p1unBIoBmOwheUKrZYDr1Q06DDfFj3xhXKAesABR2gi2sECxQK+L3V142Z1BLi6Mkly2sEMET85ZZisMUSp+48sr/tpEo9l3IWMbkldt+u2p810jCNIXdFCxh5CbHgIOWJ5AVVJskEWa64MoYuMHmZo4okDSNJKyQqqpzuaRyqooAO9mYAAWSKNxn1h3h0bjZOdzUuNMhUMtepZF+dj+RDCDH/AHMxRtgUZl4kNtvuRu6tK7M1vUnQ4mj5860LcY0kaI4FE+rKsUYHIHvYk8naSLVl6z9SOzdAQ/1LufRcVjzGhzocjIkU/C42GcnILeQP8MIKH8npicn9TWhIrKr99PJwOz8krxfkpI/KO1cqPAyg8fyjRtmYlQ7b9SFhfS3uaRdz6djxNVMs2diBh+BSuwVh4uwBuP8AmGNL+ov6aYm4f1jOyADtL4mj5zLzVg+qsNk0DVVdAGiR0utMfUXoDNzQwHJvCNgSzQNZihCkneZ8Y+Q8ag+hLNxVyNi/z1ty/pt3TBEX/pSZCqCSMTMxZ3NVYVFlVjVcgqSxHHuItT0b9Q30ty5Ui/4llw2c7d2oaXqWNGDZHunWGaNBQ4shRzdV1OXtbrnTmaerVw+cxd+39sbRrU7KzWhTiaFZbPgIDxosskKSO6L45Jo0bbmAWBqmk6npmw6hpWbhRSTiAPlYk8CmV1aQoryIEaTbGzgBvALDgX1LGndz9s9x+pHoncmj6vMmM2YYNO1HGypVx0aOEyvDE5lWJJJY0LSIp9R1QgNx1YFoPJTstA85EMhicuXB33UDkzMSxHIHkpUg7bAg7FdcMeySJaZQdslf22OASxPJ55BXgiibF9M3WIkP3BIVl/xFA8EANyoWqFCqYc/JsAjq3P6G6j2u6AsuWkajpjNTlxuVHmajWI3IHwbIG49/n7JHoT/9M4h9+zgEGPEm54IqR0skmiSd1Dg/J8cmmX6kchYuy44VIC5Wt4CbfBPpJkTKTRIIqLn4sA0Ca6t56m7qjfR0dHR0dHR0dHR0dHR0dHVeH6neKfIfS/krcUIkfC6y0rfdmcxiOvZluYmy/IK25VLysE2HNgqEry36Z3fUJl7cy6AJjeGQXxwWMZ58eHuqviuAb6n39NWWMX6pYEZahm6XqeNRFhmWOPKQVY5vH/mgLo81lbmxyyXJpuOwJO5ZeRJ5EnZv7U+12H8l9t7HqmGoafuy3lWNaLAMSA3hya3FR5vkLyQebPXqoNQ9LHRCSW5oK3ApTXihx5BPz4I8mtL64O6suk8euj8NeaO3frWZMzSAXw2qWQjWLF4+aTgZwk7V7t65DVmqs2OhWKewFtwxyS39Ie0oMvKyte1DFSSDBmiTSi7SDbqMMgmeZYkYI8ePGVH+LuQTNHtAZTVYv1H/AFJydK07C7T0jOkgztUxMiXX40jj2yaPlR/b4+I07o8scmTKksr+gUc48Z3yKsyqaxu3747Xet4cNrS/qPI4+9Rzlr7LCGzPNbyVbFyW8fSliHlkrYdrdUNlrVStdt0KPkmo1JGgVUszjxLM4WRHcMGNIAzFqLVRs7QPO2yBzQ89Uaxy004WeWRVKSVsZr3BDsVtquyoxUKWVXKqL2mj04eazFrsxrv/AMNWO3egMPkqK423k8FlO3MWVzAxNyslobZHuJLqQTzWqEk0tOy1SCJJzEz008TQrvf1cWYI0aobVqMa7trAEUXMhG4eCTQI+Tz0pGdsF1T7PDV02M6S4xmkCsAwt8ssNzcFSYwGXkg8qJC9wX+ny7pfRvdWfRF3Dag7raN1bDjNPx3qmBsYHJ6ctriNOa0xWJ0ZisRp+aDJ5QzR2pcnX+0tUcfZerBNlFQky2iKLN6R3TxOVUsAI9rUkhCBUokMbokgWOl7LfSpoMTUPs3gkzYcyIx+pFAyTYzKkGVBHipHFTyNskSUbGVHItlAKG7Odz81orUuJevmbdavNaCy2Tbuq8c8sYhj3spM01elcdK1fKxFLMElJRJLVlkrRMrey9Kw9bxJ8LUIYJ4pQ7QnJjWQYuQYpI4sqPcLV4mYMWX4tTa2D0dvd06v2nqmFqujZ2XiTQzRpOMTJeGTLxRKkuRhSunnHzEj9ORHV4wCHrcgrSz2Q1nU1Ri9PZqjHItPJ1YLUMU4As1nLus1SVOTIs1KzHLVl4symSF2VipUGq2bpk+k6rkabkqBPhZDwSFeQXTyyEge1wFdCVFqR469HE1PD7n7dwe4tOZ0w9YwY9Qx1kBWSOPIFGCarqSBw8EoDEB0NErXV8n0FVlfWeqbKqxFbSNcOzEsRJkcrUO2+wBDCmx9n0FH4n+pw+mkLCbNe6C4kak35MkoIHJ5AC2K8UPN0KP/AKlZiNC0GEm/V1ucqqgUFxsOQWabg3Op5B3bvzwbTepf6p50dHR0dHR0dHR0dHR0dHR1Ef67MRHmPpP7yQuhc0tP0cwmw3ZP8NnsVkZXX/XGvBMGO4/Et7A3PSH3LEJtC1OMgm8Ytx5uN1cV/Ptsf+gyn9E8xsH6pdnTAgCTUpMUg+G+8w8rGVW58F5VNfx89ZC9QzyYueVI5BYhdyFePcMp3KqrAnZX3HHf2p25AkEE1R1PCEbsQQQxNGuL54b4G3mzX8+D16twyfcRKSpVqHtPJJI8LzZB/tHHNAkEECiH6v8AVWnu5Wupb2msrFDJV8GIyH+ZxmqcfKmUxkd6jboSQx6ctqLNdo66NGjuzCJ3U/k46sH9OdBz9J7fXHz2hBly5cvGaCQTRnGyYoXRxLEGVi5UuRZKAirBoefn1w7n0XufvJ83RJJmGLgY+m6gMzGycGZNR0+TKgmifHniDq8CmOMlaVjuobhXUQMXpiWnerZA6mwteaOeCShbxt/VFG5WuO/KpLXll0TahmabZo4oiNp1Mnj8v5xmSYsYq6kuRRG0r6v7gCASTGQOOBYo8VxfUMhiPcZIA3AWptrA8fDJRBBsfBomyQR09sObxWWqY+x3I17gtaUqCQ0dPWM1js9LJj4Ynl8eFqZ6rjqs9vExSJKK+JsG3SUrNFHj4qokq9duwSAGaUyKqgR70kHAAoG0HtFE0fbzSgCwO8ZMboPuZopwgCo0tMVVbAjEqsC6XY2m9o5HgA+tnPLq3OS1qWZw6ZqtXoY2xNexuvdRapoYyCFa+IweLxdTtzgcJo3DRQbQ4vC6dwdWV0O0V6w8jh9E+KJGPuUGwp9krPRA2LxGojAAI2KqqVHg9fU2V6xIRowwRY9zLNJLFEBUaQxJjJDjxAH2BELMfaCX569/T+gvG+ImbO2rP3sVHJY0VdBa1MeUoSy3DBbo2LFOn9xSkOIyitdgU1oBjrz2J4FqWDFz/wBPCncS3w1enJtZTZF2ASrAE2p+G54J65lzJ4fTUSCRHAKL9vNuI3MqyRP6dnlG5X2jawLDaSL6vo21vS1RgauLxOOy1evpCaPCX8heqQUqtrKOZMlcShDHasTSCCG1BLbsyGOF5bi+HmC3Csn1D0iXS+6MmeXNiyW1bInz48dFlM+JjFwkYnYp6dsVkSMRs1LGWJIAv0U+i/d2H3T9NsbDxdHy9Pj7VxcTQcnLn9BMTUtTWN58g4KCWWYrGJY5slpgg9XIVEokhdRn6esRtjuNkyN/DV0pQB+QDKcpZbZthy5CFXJPvc/A39yX9NIz9tnym+ftoxf4AlYG6ANgi68eOOqnfqeb0JO08Ox7zrWUQBX7Xwoha+QbLCz5qgeD1Zj1KHVT+jo6Ojo6Ojo6Ojo6Ojo6Omb+ojCLqPsR3iwpXyG/201pEicQ3OWPAXrESgH0SZIVCj/mI65NQjEuDmRm/fizrx5sxNVf69OrsbM/p/efauZe0Y/cOju5uqT7+BZDfxSMxv4F9Yctc5kxz2G3kDfEi8gu26bsOPr53HJAAdjuSPnqr2pxAyMdpH5W+SCbPNf6Afg2PPXsThQn0wKBsAqPII55v4PBAr5PJvqtPuBpnuVV1dmcxpGXTVbC2+4uJ7gLHdyuQjuZFadHTjZnT71auJux0oM5mtNY7IPkYJxaSWIpt4rM+8t9o99aZpOj6ZpmWM718MMjukO+H0xMzxR7vUD7Ej2lm2g2tAECuqp/UX6Hd6a73Z3Brmgf0NdN1LUINRihn1CXHzHk+yxUzYxF9nJFFJl5eNv3iSmLFmrewEIdXa2Z8acBlZatOpXo6Qx0dmtT1jxhtaJ1DqLK6cnjmpabWhE1LH6lvaXt0vFFI0FaO0kleyro8xJkCWJHjYNG8UDRyIr7HUMZYXU352SlRdGiDYuuqg5qiJ5sXKU40sDHEljcTLNHNiTzLsIWAqCm54XAvcUDBwSbQus4V1XNUtZq42JvQYTTWAllo6U7gwYx6GnKYwVCaHES4VaVOezWStDO4ty1v8gti5XhinyM69bpAJCC1owWNLWOQBvTAQEKfaGI9p4oj3CiT1xTIsi0ZlBVFjYBMgRqETb7YzFSEgHcWNFizBVJ4fV9bXFymQ1PNTnqNmtb6L13vX0xqe1Kmq9KV56emWqtayWHs2cV4K9lLGIkjcTTxvOLlSRfy2StReQ8MZUkG1HIWRQVUAiRd3FjaRQPk8ddy5O6R5WUBWyMadh6U7D1ca0xm3ew+mLO5L9xIYMCvUp+ytTXfcGCzhY9QRVcOINVT2BqjQsjSQ1db4SLTupsbi7+N1zLcxdTUcz2M8tCnYqRUcql+/Vhgq3Z61pm90d64Ha+LC2QHzpp5ZIUw4GxxNGvogytMzTM0Udm1G0/4hOwbbuWfpj9J+5fqdmZ2Pizx6Pp+DjNky6pqmnZcmPMc5jA2LgNFIPVedw+RLHHKi45VnNeqEa2r6ZNP2tDVLGNs3sXduZLU+fzkkmDwo09i0/zltJ/s6WKWxaSjUo141qVoVmdFrpGux2LNWbujXj3R3E2qxQSYaPHjY6Y7yJKUEG9XIMapGqsCX2gDaeCSeOr79jfTqX6c9hjtvKz8bVJl1HUtVnzcTDfAhds+RJIokxnlmcHHWNIg5kO5VACqBfWpP8AThrlu32u8kSWNnVGMpctgOS0cHFPsCB7UHIHYfA9j53PU5/T6LZpWQ//ANmQgJ5o+nCvjmq918Aef/NBf1Sy33X29jePQ0XJl2Xe37nUZl+eRYxgR+R/tY50/eqv9HR0dHR0dHR0dHR0dHR0deTn6EeVwmXxcq8osli8hQlXYHlHcpz13XY+jyWQjY/76wwDKykWGBBB8EEUQet2PM2NkY+QppoJ4ZlP4aKRXB/8r/p1gI70VZ8JnczUmH5Vchfr2ARuVlgmmilYAkNv5o23IAC8RxGwIWsupJtyclDyyzSBhXjazAtXixVAA0PgfHXtX29PHl4GHKgH+Ni47qedpEkaOi3zwVcfHNm/A6hpqTJyOzhZC6Bzu/Lg7N/aggndfy+ATudtiNz0noSpG3lQaNAKTwSASfNAf7/59OYYyyDlFU0KA5HFGzyKPHmr/wBuotdxslpmaa/UzWB8jQxp9tZrV1GQsyzwCdzWnrLDNDEzFKySy2JEsWvNFJV8cE0geeiz6xjLBPpuc0JLMZEkkYQxIG2ssqMzxSMQGdowlrGUYHc6qYa7707sjPOo6d3T20maI0T0JIsRf6hlSywJOJMSaBIsiCL1JI8aPMOSRJliaJ4PSxpZAzlHQvb/ADlmvSMucqW7skUP+OtQs6wsY/uPDI1QV6h8abbN43Jd0b9wkSl7P3d3HiwSSvi6VlRxKXOUu9VZN3plhH6yEW9/2AgBv2gdQlifRb6U6tqOLiQ6p3fpmfn5H266VPHHL9vkNCZxDJlNiPGUWIpucSuGZlRSynf07/b/AEjoHD1Yc9FpvJZZVt26tyvMsTSVGp1Y7o5VK1OMZRpVmhZkuXpakDOUmkkaKTgjaz3H3FlvJgHOw8ESQxywtiRiGOaOaQxENlPMZYgpD3wHkC2g9y7nX2b9L/pjouPB3ND25rXcBxtQzMfLi1iRs6XBmwcaPMiYaTBiQYOY8qSw+2SV4MeR2Dyt6cgWxLthloL1MywY69iK9WwIFr3a/wBmSqwQyCaGv6EY4yCFk47RyQyREsV36iHVIWx5iHyIMgupleSCT16tmBDMxG9jW8sT7lYFR4HVtu281NRw3kj0zN0yLFm+2ixs3EXDLqIY5Q8OOoRUQCT0mUKuyWN0s7eJtdsraJarkFl/djJB48WIK/A/vfck7sPkD0fR4sRSJVofIAPtprB5A8kWACeBzVEc9detqWxpV4K+mQSBRHtPHHA8AHz4u/nrU3+nNWC9g7F//iyWuM/JuBtzWnUxNFW97nYGJ1G+3x8D4Fl+yEC6FGebknmY3R/aI4/I/wDx5uufjryW/U7OZPqWIL9uJ2/pibb/AGtLJlzkVfHEin+bu+p9dO/qu/R0dHR0dHR0dHR0dHR0dHXyw3H/ANlP/Rgf/wA6OsEA+esJ31u6Zm033i7qYTxtBJh9f61oyRcAOCJqLJLGGUj8SsbpxPtfGAw336rlr6ejq+dGP7cvJRga4BdwP9VBF1x17BfSnURn9pds5W/1FytD0eUNu4s6fDv/ANSU5J5DEg1VCq/UFqV7EsLB1WOQkKg9eXchjGNthuR/DcEjfbfbpCDc0BY/P4JPx8C/k+K+QL6m+KJQq/G4AC6FeaJB5ujRqx/PI6Q1iTzExSqCAx/KRmLEhdiy7hgj7n+Y34+t/wATsd4JAUgVR3A15ABoE1z4ND/Nq4B63DFVxXt4BNFVKji/JXi7NcgkEi+TXxVCQyK6RqsoKMzEq0bbAxgohACyhDwZ2P8ADcKx3261SSMFNEj5JJJsHzYFXVAc38eCAOuqLASxccdWCvsjWRSoKg+oELDhioPwp22FsFx8FYWNVKqkYYiUGAceRZmYjh+O38fy9b7kgj5JTppCRtYkgCrF87ubAPAAF2PAPArpVgxFjawPkr42gc3ZZeCSebPkj8k2+emcsPJCAZW4qqM3NgP9AL8ltt/yX0Rs3JSoBZKkkQXfIBPk1wfbYABLDkEgVYH8cdf2/t5KrQJXgGgBwOQdv5FX5455EtO3WXKSQP7BV0VW39BgEIAVv5AfzO+25I2HrrbhyM0qhVNKR7mrzz43E3QHiqI/npA1eHfGyfBQl1HjawPlh8/g81TFuK61+/p8Y96f0pdtrcisr5ptTZk8wQzra1Lk4IpfgclmhqRyow9FGUg7bdWj7Qj9Pt7Tvy8cknxZDzPRPnyFBHPg18deNv6jMoZH1g7sjVlZcJtMwRt5AOPpeIXS6oFJJXRh5DKbAPAmp05uoQ6Ojo6Ojo6Ojo6Ojo6Ojo6Pno6Oson6zvbCLBd/shqLD4r7GLWOkMFqW1NVRljv5ZTcxGUtnYlEtStjqz2VUASO3n4mSSR2gD6menp2uRTsohizsWKVpKuNpo3MUm6qCuFEZYg3IDyLBJ9Ev0s9xNl9mx4GXkGdtM1PKwI0mIJgxmEWVjxC+TEDkS+mDYUWoIVVC5t9VCWG3OjqYm5srO7cfbE8ixbYHfdlPwT79/I6YsWbGQNkiN/3XwfgfN82bBv82Rd3lwjE6KyncPbtAG4EUDxV8+CKHzwOOmzu242RGDoFTdNi5Owj5EDfcK/x7b1sPkkHY9f3SkVvQgEjg+DXIsHkgCiP8x8jpaggJYggkkiq8DcALbjg2fFA38c8ePJlIFfgjLyDcHl8hLJzK7HgWCbMGPx6RVYk7su/DNlqw2BvPJFge4j4/wC34F3XxdnpdxcJzTtZHJCUQDtBujV2eAPhviqJ6VuKzCK8aPdjEabjfyKqnix4ylAxZWYfnxYEuWKkDcDpHny4rNyKtHbu3AHg8WLBskcVd3fnjpSXEIorCwJPI235FkChtIDCrHiuTfUi9CqctNAkU44yFSCu45HYAkkBR6HpD7Y7+yfgpE2fGbO8N+PaK80Sa9tXdt+RRF10k6hKMRWLIQV8g+Kq6IPu+eb4B8cnqfnbDt7lstfoQJyCzTRqPxKO7N+OwP48Au6jcgH1uSD7HdpOYMzMix4Kd2lRaDbFNkLZY8gWQeBu/HixF3cPd2Jp+FkzNwY4nkNkOFCizY4s+Tt+auuK62+dtNN09H9vND6Vx9OvQqae0np/EQ1KsSwwQijiqkEgSNAoHKVZJHO3J3dnYlmJN1MOFcfExoEVUWGCKNUQUqhI1FAf5gn8n55s9eH3cOpz6zr2tatkzSzz6jq2oZskszs8jtkZcstszEnhWCqPCqqqoCqB0t+unpH6Ojo6Ojo6Ojo6Ojo6Ojo6Ojo6pH/WH0p5cV2u1ccNK9XhndNXs6kbSVYpXlrZDGYzIEBoozKDkZ8eZDE8sn3UcLSEMiwZ9cKh0rS8r7eR1+5lxpMhOUiDqrxpICCoDMHKGwWYMqnyDaj9MmoBMzuHTRkoJGXDzosEkLJIqerDPkQVTNt/wEnokKnpsQPPWYvXPb7S+UnmexT+2nJbeWH0h398mBDL8EsSQuxO5AO56q4NXETjbMEC+4clbDC1B8hSQfAPxQ46vfpWu5+Miok+9eB6b+BQINcggCuSD+DzV9MBluxem7xbxZBVO7cQyQMF97j42O23rY/7JPSjFr9LxOvn/qQk2KNmwLr/APtHp54neefCBcIIPFgvz7SL+RzzyFsn/ZF2vplxNp0lhv1vIAw3NdCGViTs23LfcbD3uAFA9+z19vrKOQSsTsBXkXtI9wsHj+asi/8ATpx4n1IzIVKNBJtPHtlN2AK+QRfLUaFkn55UWD+mqjXsI3+UoxKBxPCBG2BI2bi7HdiN9xvwX3xAUbBKm1dF/asKjcSQdi0ASQSW+RzyeCSKA4HXdL9SppEr7WdzQc7nJvijZHgWBz5NDd4HUqO3PZHH4+WC1HPfyCRSLI7Va0grjbYANIiGML632L/j72+Tuk5WszsjmNSYwaaRYmkWME+33KNgsmvd/B4sdNXVe+8nJjeIRQQlkKqZZFL15NKSCTRIsAUPzR6tN+lrRd7UXdXt/pvCYc5fKWc/iJUxSRGeNcdRvV7WQv5Pxh0rYqlUjlmvzzcK4jHjd2eSON3h9LzPqXdmk42PBLlv93FPKoB2LDFIrSy5CiysUUY3szEIOFJJYK1dvqnrMeB2lr+o5+auFAMDMjXIc7GkysiGSOGDFshpcmWR1WFFDSf3CgrOusdRsAANgNwANtgAfQAHoDbbYf0PXrq/v/7JP5/9/wDR15b9fvR0dHR0dHR0dHR0dHR0dHR0dHR0dJ/VOlNNa3wGT0tq/BYrUmnczWenlMLmqNfI469Xf5jsVbKSRtxOzxuAssMgWWGSOVEdebMw8XUMaXDzceHKxZ1KTY88aSxSofKsjgqeaINWpAKkEAjrwc/N0vMgz9Oy8jBzcWQS4+XiyvBPC4/uSWNlZbFhhdMpKsCpINO/e79F3tNrS5dy3Z/uPqftTZtNLMun8vj4NfaShkcnjDTW3dxOpaNRdxxhbN5Dx8QkJiiAUQfrn0B7Z1CV8jSM7O0WViX9Glz8ENVAJFOyZEaj4UZBUAAKF56sd21+pzunTIo8fuLSNN7jjQKpykd9K1F153NJJDFPhyyH/q+zjY/3E/MCdRfod/VDTsSyYPuP2F1RUDERven1xpnIzAfxL1H03n6UXoAlVyknE+gXHvph5P6e9ejcnH1fQ8tOQDkQ5eM5Wz+5PSyU8UOJK5PwR1K2D+qfst1UZmg904ElU328um50IsU1P91gyEVwp9K68146RcP6J31hyzsHvdhKsZZeMh1xqd1A3/NmSHQjMB8FQq8v7Pv10mn9Pfc7sC03b6fuUFZsigDVAAYakHgk8N4FdLI/VL9O0UVj92sR8DAwQx83e7VAp4rbyKN2PBDvaV/Q++oMPE2oe7fZLBJupZ8LjNb6pmjXkWO0VvH6Sidxv6AsgE+yxB678f8ATjq7MjZOuaPj82/2+NlZLeef3piqTXmzW7n4vpKzP1Z9pKGGH213RmMQQoy8vTNPQ8EAXFJqTKDwCaY/jqe2g/0ldL42rTqdw+9Or9SU4a0UFnFaNwGF0TUsCNAhje/dl1PlPFKBu7QSVrI3/bsIwDdSLjfQ7SHgTG1bVszLx/SEUkOHjwYKyL4IaRzlSgEAbtoRwTaOporF+rfqg1uR5X0HtXR9OlZ2MeTqWVmavLGCSVdYk+wxvUSyFDpLH+VbirFOzX089oOweKlxXa7ReO06bccaZPLs0+S1FmTHxKtl9QZKWzlLwDr5EgksLUikJaGvGTv1J3bfaHbvaWOcbQNMgwFdVE8ygy5WSVqmyMqUvPLyLClxGpPtReKgnuzvnurvfKXL7m1jJ1IxFjjY7bIMHEDcEYuDjrHiwEr7WdIvUdQBJI/np6unL00uuOVnWNzGqtIFbxq7MiF9jwDuqSMqFtg7Kjsq7sEYgKQ3Xtq/i/F/F/xfnrK7dy7iwWxuKKHcLfuKKWQM1XtUsoY0LF31Cur9QvfDF4TOnP8A0+6uzGoq9nONh2wGDztLBPTingj06LqyVs3lXNutbq3clPVRrMEbXI1xcNihagha41nVY45vU0bJlmDTeiYopUi2qyiEONszncGDOyCwNwMasjDqw030r+m+ZqOnf0z6q6Fp+kyRaUuoLqmoaZlams8sMsmsNjuk+m6ev202PPjYkcr+hK/2rnOmhyopXeTtR3wqd08XprI1tFa5wsWo6mfspcyOnb6YSgcDl72JNe/mJYa0MFjJmhLdxipDLWsVnjiFz7veHpS07VV1COCRMbKjWdZmDvCwiX0ZZItrSkKN0mzfGFDAoRbbjQj/AL3+nM/ZWbq+HP3F23qEmkTaZC+Ni6tinUsj+p4GLnCTH0+OWaR48H7pcXN3SRzRTo7DH9BTJ1//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgAAAgIDAAMBAAAAAAAAAAAAAAgHCQUGCgIDBAH/xAAxEAACAgEEAQMDAwQCAgMAAAABAgMEBQAGERIHCBMhFCIxCTJRFSNBYTOBJEJSkbH/xAAdAQEAAQQDAQAAAAAAAAAAAAAABQMEBggBAgcJ/8QAOhEAAgIBBAEEAQMCBAQFBQEAAQIDEQQABRIhMQYTIkEHFDJRCGEVI0JxJFKBkTRiocHxM0RjcpKx/9oADAMBAAIRAxEAPwDv4000aaaNNNGmmjTTUHeo/Mb3254X3/ufx1msThN1bWwFzclGfN1hYx9uPCRtkLWKckOYJ8nBA9SpMsU5W08MZhZZSV5Ala1x40lnKsIUk5FC5BA5BSD4Jr6BokEDXoX4pwfTG6fkL0rtPrHA3Dcdg3fdMfac2Ha5vazoTuLjFgzYgRUy4c0iZEsBaMSRRv8AMFRfPjW/V/8ALeGmd/KmC3Bio4QkpmwuHx0lVgpVe3MePYVJI25d4rDSgMAhBXXAy5sWIHP2lgSLHsF25hjxNGyqsPNE+LFixf1Cyf6IPxRuLnG9F7zhvKzmJDvObmBg1NfNf1CtIp/YjrwYdsfIOrSvTL+pj4O804kU8ruGLFbiqQLLIHruptwN7YSW1Xj5+iudXVp0UtWduzRGMj2tU8bJxM95BiPwkU/5mNN/lyx34u/iV8AEN2eh3YGn35h/o5/JP47y/wBZte2/4vsk8jKj4sySmCT5EpFIWBnxjRETsqyqOKyBjbl+6Pk3x/k7dWhQ3jt21eulFq04srVNqZpE9xFWAuJAzp8qrAEnhf3EA3TY86glonAHn4nr/cefHf8At341q5k+k/VGJjzZeV6f3eDFx7M2S+DOIIwr+2xaUIUpX6Yg9eTQ71vAdWHKsGH8qeR/2RyB/wB6o6x89Gj0f4PR/j7/AL9a8tNNGmmjTTRppo000aaaNNNGmmjTTWg+RvJO1vF23m3JuqzZipNdqY2rWo1nuZG/fvSCOvUpVVZDLKxJd2d44oY1aWaRFX57xxtKaQX47ALAWaF8QT21Dr+e6FkZH6W9K7x6y3UbPskMUmV+nyMuaSeZcfGxcXFjMs+RkzuCI40UAKArvI7KkaOxrVVXmDz5f8q5XKVLcNivtQx2sbVxy22ixsVB5njSa8kUrLkMnOOxexEkqRyoqVZI0iV9ZNi40OOjxqjPIVqacgKAxB6VyOQQ/IJxBU8T8r8bofj38UY3pHE2/NSSOb1ArQZpmfFD5RyokEjx4pdF/S4kRKipXRnQlpUZ246Q3dHg/ZOZqzpXzKUqsbuZPfAtxfSgc8pBOjSyMFcQswdVLgiNl451yI3AVVnAjBJ4y0VIHgAEcj/BI6J6Ddi9pMH1tuySIM/Zf1OVLGoR8cHHlWc0o5yRssSdr7i/EsqUGBBpsX4b9JviTa8uTtJkd0X7FyYCOJtynD4+s85k9qCtVgga7ajkYfYLk84U9Y0QlfmOG14iSPyLMJnsozqEskkKAVDMKNgMTZ6HY1V9Wfln1syYkELYMEKRK5D7dHuOQy44QOXmkPsxcVa2EKIxA5SPd6YCtt63st4TSu5jcFKlYus9PIXInyKV56oUvDlegR/pypNOMRwqhMkcSRO7A336b2oqjDzsvLipdQ7Bugpkf4qEHgULFqACdYLPusPqFZv1EO37Vk5UWKGnx8RkwZZYcgsFl24P8PfVv+KdSxk/y2dpFjoaxB6k91bAtpYbL7k25XMqN7f1eTieeOFy8ZWSq4hmXhFaZeGUgsPujWRRYZD+2D7o4DqkdAxJXskdG+IotV1dixYErP8AiT0v6rh/TPt2y7rN7bLyGNhOiSSAFgokQSRWWqMkobNkK1HVx3pL9SGO9QWyp7Ly1zuLb7Q1cr7HKpdgce3XyaxHkwvOyMtmMExiUh4yA5jjhg8cgLREEBijAWApHYoGzRFED67/AI7+fn54/Dub+JPUsWNxmbZt2WSfbmlFtjutNLhGQdSrEGDRSH5lLWQcl5O2WudeF6NNNGmmjTTRppo001pu7d6Y7akBM/E1poWmWDuI0iiBZRPYkPJSMspVFVS8hVwvABIvcPBkzC1N7cani0hFnlV0q9WQOy3SqK8k1rskcs0sUEEbSzTOscUai2d2IAUAdkkkAAaSXfXqZ3ZK92PCq2IxdfuHyyxqJZVUhGXF1WJltTBjx2sTRxqAWl6Acan4Nsw4hRjMvj/MlbkT/wDqi0v8/wCnrz/Gtg/Sv4axphhzb9njKz8ngy7Fgv7UOPyBcf4pn/uiQKCXTHBYkcELXelP3nvHJ7kWxlLO5LOelghtmnQyGRW3YityQ+3I8vEMsVacgHpHBJXjgYpGFQB2WRgjhRWQcAQPHBfj10BxN3f19Aede8+nfTOLs5iwsTY4NrgkmgXJ3DBxZYIZsWGdmEUTPIss8AYU7zLK8lNZNhQvNTE5fOCW7ayFbFzgMXSUyLGPYbg14I4+Ix0iCBT2cqWKAcNwaToVv3H4sF7FXS1YAA8gX2SSS38a9qfcsLA9rCxsSfMhDIqPFwLEyEEyySsS5YvZYKqg9kkka0jde09z1IpGx88UiuffjlhksCCRZO6tHK5HCL3VmCIylFCkEg6o8IyD2ByFry51X2ATQF9UqsD0CPGsi2vd8WZo+ccitGGSSN1hMiEUVdFse5xQ1yZW5WQT11DJ81ZHxLfim3LhZ6b5FJ4IzlY3lx1+GOeJls0cgYTBLJUkWKWrNWmFivYbrLFJ7sqPF5ky4ZDSKVccirN8lK3QqSqYftojuyVrvrJ29Obf6wiONj7mithSwy8sNxFl4zvG6PFkY4YH2slHeKdZUaKSKmjdWiVw0uxPMmyPJlaarTziYzMPEJBUvNGiytCru4hkJjBBAd1KlXHQnngdTzj7jjztw9x4ZexVDgxQHkboNRA8j7BqwOvPvUHoffPS7R5ceINz2xHKPNihi8auQqc0IZvjQFlWHYCkedfTPkbc+Tvba3ntWrNhshRkmwe6cPEcpE9hG7RQXRGQK1aeu/ZLnXq8o4dngIV7gvOH4yR+9C6NxkiPMBgAQH6tA6mgQeLHrq+6EeJitiY28bDvE8G4YWVHFuGz50gwWMLn/Mmxi1rNLFKoDReBHVKsl0x/puOB8S2cxPtHIJQm3I9eS+sMEtGWNYIneGNY5CtZq6TLJ70URWJpGDR/Lk6ow4mLHJM4xw3vsjSxlCVuiAR9K6mwePiyQCL14x+c8fdPyJg7Xj7x7wGw+7+imGVHMrPIwWQu8YMpeSJl9nkrNxUhwtAafzYvqAizNlMbclp37H46xywxXeAOSGWJjGJAOT0ljj7f4cA8jrkbZASPaLQOeQCsS8Tno8RZ5qQKPlh2ehrT71N+Ot79P4sm5LFJlbdH3JJ7bI0S2AX5EcZUFjkU+S/agAnTM47IVcpUiu05PcglB4JHV0ZTw8cickpIjchlJP8AIJUgmDkjeJ2jkHF1JsDsEfRDVRBBBsa8+19uummjTTRppo001BnmHZVnKUbm4qMqPFUxMiZzGS8r9Xj6ImtC5QmAZob9JGmYxEe1chAiJWRF7zG15scXLFmBCStccq/6JG4qVkHVxtSkMAWVh3amhJ7Pkz4u5YU+JxGZHkxnFZ69syyMIxHIrfEpJYQk0UJ5KwIsVpb02FYz/OUw2WbJYkoGWOiEZ5I0UuK5KPLSWSRXYqwljZ3kDvCjBWbJRGGAAIkMfY9tmJYCqDA+BZIqvIIJIutuvSH5UwNlA27f9pm2HdnPCSfclkbGVnIU5KycEyGjQhSFCShUVQshDahSxhMtXnWvRpyUMRC611oXoXW0k7Hhki+nEkdgyzt2eaxIASTyzcoiqZST7bIhP+pCCfo1X1yIAsnrxdd+4YHqT09m44b/ABjb913CSP3ZMzb8vHaEx9cWmWaRJYeCKAsEEZdQK4i3bUa7kq5TBzdZJpFUAMK80qyNCCSjhiGYKSF7srSMQ3I7qQoHR3BZlJ7ZfiLs9dHpuwOqNnvqq1m2zyY+XDyhhX4yBTNGjJ7wIDIyghWYWwCtw8G+we/ZT3XjVxcKy5I2L7WGj+jNiMFIDCHhlMLEFIeyyASOV4KSdCyoTqNaRFl4CQlmo8C1/F+wStWoFfX8fx5kpdqyTlMRh+1i/p45GyVhanlErJMiyLRaQLwLIoP7oy9WKwG48PtnceHsUdxfQW8XaSaexQt1zYx87fmO4sYUGDIQspalbrGGzEzELMOzcVG4mOsqnjs2jKHQk9L0Fv41aMKKMR2aB1zjplR5iT7fBNHmwvFHDkxusWUgNFscuXIkx3D/AOdG4dGq2CkC19i8HbEoZKhl9r2sxG0vecQVM1kLUkB6qq1FHSSaBlJcNC87lC0oAZW7iPTA20ujxJIrX0OchZSeuBsEKfNrfhiT14zdfVHqGOHKxs8QVEwjDTY0UUUi9s03EuFlHQKyKig0hFHrTMbcn3dWrVKOMrZuWvQiaKrBbjMlYxAKAkokjMnZAisvMnUM3chiSTehGQqsTSKFBQITaeKHLrkSB+2jQJs/xrB85dlmkmy9yk2+J53LzSxusMhc8uywl9shiaoLyI6uuNMn40l3vk2+nzmCxkkMbM0VoSRtcqBpAEb6euk72Q3Xho5EHcM/CBVGkJzUZi6lhzYqQSgCknj5HbgE3Qon614x65n9F4oL7fvssWSV/wA7Gj+UM6hWLqZpmRIKJ5K6sPb4qeVntydgbYkuZLFVo6tGtlp5W9pHhSsE9tPflsrWWM2UiiAd5e4hVuAAeDw3MkqxxmWYtUZ51xUkk/HomjZJAJIr7PXjVz1rvZ/SZy4Ms+TgFBFLktLLKhWWkEJlL+w7SDpKMjqCxAFKdPFt7Cx4DGQ49ZnsyK8s1ixIApmsTv3lcIv2xpzwsaD9qKoPLdiccyZzkzNMRx5AAL5CqopR/vXmuteDyOrsSqBF6CqCTQHiybJP2SfJ1nNUNdNGmmjTTRpprxdFdSjAMrDhlYAqyn4ZWBBBVl5VgRwQSD8HTx40BINg0R2CPIP8653/AC7ubdfiHypvrGYO1dxlbGbpzkFZ8eYxCaqZOdqsEmPkdIpI/pnjVPZkhBiQfZyOdZysBnxsbIjJjkaCJy6f6mKi7s0eRseQR99jW/focbX6n9J7IN6wsXdYp9txBJHmpzkjkEAikkTIIZozzQkEqxUkEE2b0eP1qZ2FWr5SltXMyHsqyZKiaV0qg4CSrfjkQ8uP3LaWP5CheQGNqcjcYbQTRPRJU/JTx8AEM1Mf4IoG+z0KmZPwb+PcxxPFBu21PSlkwcphGCxJZonx2jk+7KmJmXy1A0P2x6uttW6qxZXxjte8Z5RHHJSq1pY3LBuA/wBDe7kDqSW7KeCe3DDjVI7jnJReFJeTAK/tuxAqxyKFrPk34riOyepTD/Dm3Yjh9o/IHq7bViRWaH/Ei4BUr2BlYzG/kCB47AvWtTeo7YpWSrB4owECyypc6V62cgYyIjxrL3heb5T+6qlAftYkfPbT9dIWt8HGJ8/ESoWokcj0T91468XrI4fx/usLRSj8p+qHMUZx0fIG05IWN3ErRcZEioMQrFW+XxF0ACfUvqC2tOJBB43xwcFuV9zchUOoLESc1xwqEr+38KeAXbnimc6Qk/8AA43LsAF8gqpHdn/Luh13fEk0L8avE9GbpEwjl/JG+NG5AJO3bIWI5UtOJKDMLPYI5d/EDvKUPN0EvVKPj/GVXESuCkm4pI4wersJRJfpFgGZOvZ17KOCyBBrlczMY/8AhMdSASSqzSL2PBBKk9k/X86ZHolSGOT6/wDUc6M4Rl57PjPIU+IVfbxZylhSWK2VN3dm96x3mLJAxd8VtXGtG0Q4sUKtmVVkHVBGchlMo6sT9wYRiTgkmMODxcDNzQoYoqKpAISJQRZALKeZ6Xyez1d/xrFMz8b7BOHUbj6j3PmzmQTbxlqjlWuQsuJi4ankBx7cAmrYgqBNG2N457MyKpzNp4CSjU8XEaFNQAFHPsxY6qfgkKPppZDwPlgOD2Jkl5GSUv39E/f2FpQeXkg31R86w7P9JbDtC8otlw4n7ZcnNP6rI88gD70mXOSCAQfcjUE0pHSmwn0yYvi5mbssP3VMbWrRPJ/clRrlppJj7zfd3dYCHCqigFlA4+TE7p8IoUBIDOzVfkKB2erq2+P9hVda1v8AyzmF48HGD0JMqeUqi+1HxgiSNKjX40PcH7uRNA39acTUJrxTRppo000aaaNNNB+QR/OmmqP/AF37SpYny9lrKOsQ3NicXnjHJ8KtqxHJj7ZjPHBMk2PMpP7h3k+DwG1nGyyNPtyIxAMTPEGHZAWmUgH+A5HmjQ1uH+Dt2myPS8ULKW/w7MycONlBIKdTxCQDvoTFfJBAX+CBVLuzbxtFZ/pmj7I8Txn2+7Ize2q9lLKx5XsvDMCXHIJVjrmZOTFihDFCp5VfE9hbLePBIF3X99bL4E49oM1LILPH5DgRTtar13dH7FUD/EDbh29WrNLJFFInJXlOi8id3C90BBP5J/42QccuV7casJEgBZvlbFTVH97MF8Ag2WPkdHyeruThkyH48n7JsMCSTGB+0sf9gTYNmgSas6TZpX6imatPcZg69o/qbUaCPse8iIJTzIqdmiKFSyhlB/i1mjZFDxguwYBlMjLSk/IgX5QeCKJH3fi8jyWdish4qbKEBWtqPxYsDYPQYG6IA+gNZvHnJiaJVu3xMxH9trNyQ9QQwCuZlAJHyVZx9vA4B+Dx/mLShnLCv9Tdqf8AUDyAr+exf8DvV0kiEURGEX5c/bjv7BPSkn6Hxuj32B3Nm1FcSpFK9yRjypkleSRS/wAF1I5cDjleQ3KN+AvPOqyrwZfk7BqBv5XXiz1XdD+P51wymSFn+HkMVA4MFN8WUUpYkWBxF9HsCtM/tTB0JIEW3VWdS6TdLC+4qSxMHjfurRgOj9WicFWWR+ylHAAuSAVIYqFb/SRQH2DY8UfBu77sedQWRk5MLE4rcGXkrMjlHeOQMJBxYMTyBtlKkFFZSCpJ06fjuYVI3grRxRC3HFBO86RWJfZ96KQiFnANeeQRBfcUySxJ7g7kueKnxsnjfQBPfhbo/wBvu/8Ap2deQeqMc5RSTIkkb9NKZYRCZIkMgjkWpVUn3Y19wsFakkkq1Fd2o+nfGw19n28mob3cnk5IySCAYKEaRxcA8E8yTTMW45JPH4A1Abo/KdEB6WMEAXQLdn+RdV39/wDfWn35MyXk9QLiH/6eHipQ6v3MgmRy1HyFVABXQHnvU/6jNedaNNNGmmjTTRppo001Uv8AqNYlX3HszIGEMLm17tPt/M2Pykrx/wCPgqt8kccnjn44HOst2C3w8lOjxmUrf0WTsjyB+3rrsk62k/p4yP8Aht7xbNR5uPORQPxlh4Ghd2WhHivJJvVOO44Z67usUz+0XPBlZGQOVU8orct1j4Jf5BJIIb4PF/KWDAfuUCyXIA5EGiLJFrVkUDRNfZ1tjjAvyKqwrjYFg8eyeVE+eq+qBurowrn7NpDCLH01kxuXVvbkTsASPlFk9sxqhb7uoZuoDFiqcWTsvxLgCvkQLI7As3QIo/6uv5+r1JRRPzkMXMLIApUvdf8ALxBX4t1RAvz5rrWh3cp0Kr9HGhPaNlVirDoCQ/LqwQ9W+SfhmdV4JPOrd5ogRxJIbkAFPZ40GY8h0ByALEN2w/k1XhjLScWYk9MATZI5dgKGsr0LNfG76Hj3YizcMxdayCeFhMB/yitH9nZCygFiI+pAaQdSyDgcqGpKCS3z5FT0xHIr1RV+u2qieNdmwAOjdRxmIHnIzRysQFYhQQo8LVmuZJDFTffZrU57YyBlmiRKscT9Q5Vu7MSH4VlA4UMxBJYHt1PBU/BFZPmVtTQs9jxQsHx935NGujX13ksL8X6DNHakCh1amrHxFWD5bu9MxtH6i8IUmlSKsx6COKHo7MCAB2kLFgygsRwSSAxPwo1cceR4sQVN2Cv330bPYN9gjs1/1hcsrjh2RC8q9iRn5KAw7PxqquvPxsgCydNz4+pwQCEkGV+R8szSL3HK/wBtnJ4XoqqeB8NzxyOeeWCjxfdiiT1Q8UfAA+vH158+V+pp5pfcLEKtV8VVCAK7ZVHZskg/YoEDvVvvhaqKvjnAcDj3xdsfBLAiS7MoPJ+Tysa8fwPj5451je4G8uUfxwH39Iv0fHnxrSD11N7/AKp3VrvhJFFYHEWkEQIq/on+1+a+zKurLWI6NNNGmmjTTRppo001W3+opjS+3vH2UQcGK9uGi8n/AMTLVoWogf5DGKUAfz8fAOsn9ON/42P/AMkLjuvBde/+/wBmvPWthP6fsjjvG9Y5NhsfCmC/zwnkjY/9PcS/9xqkDc0KmWUIGJYrIOQQoAVxx8t8dexDcAMeSOCCDqZkQGytm28kigO68fQJ/wC9/et2MOU8UEi/IggUBfVXdCwOgRZ6oUetLB5O3ZhtjYPK7hzuRio4+jWlncL0azYHKqsFSu0kZt2ZHYRQV4VaSdnCRqPybFYppnMcdKGPFbFtbdLRJABD2CP9Q6u71a+ovVO0eldqy953eZIsTAhbKmZivPhACzrHHYaZ3JUiNCZCxAF30gu8vXF4swBcU0nt2Y3n7/XPjKy+5WjStFHIsUmRyUoEscv1aQVZCkjiT9qFmvG2qUDhK0SAH5F5I+R+XfUfMkkC7AAH3961j3f+qb0ZglpNmx943SZ7MJTEGIqGxxDy5TK1MvIFQosHkR8SDhNq+sndu8LRm2P4e3dumCNe4lwOD3lmao5hkKyNZqbdSvMYy5dZHCxEpEOvHYivHsjuS0ZkkBN3DjZMiHquRYR8Tf3/AH8axB/6sdymkCw+kpnjjJKe5ukIlsj/AFCPHcMbsqSVHEUB1ZlnZH6g20sbljiN6bYubfy9GVoMrStzWsbk8bZSUmzVu47MY3GLXsQr1i+m+tWZyOvQsrAjtUgPFZIw4NOspeBgbr5JKi8GqrDN4F3qa27+rjbGdY939M7niKHZXnx8nHz1QliAOA9hwVFqAQaYiz11an6bfO+xvNNVrm1rvR6s3MNG5PRS/corEgfJ1K9S3a9/HpPJJVlsBi1e3BJWsLG6gGhlYMuLx58SrqrK6sGQ+QfkBRFgigeiPlR617f6L/K3pf8AIuFlzbDkSCbHmaGXBzhDDn/BI5TKuN7skjY9OF94KE5ch5rVk+xvaSRFQlkj9odv/Z3JA7sGAUcKOW+eeDwQOB2suwa6IAI8+aFH+PoefJ/sR3beoVYxOzji0hY0SSI0BPxFAljbVYHHoefOrjvG9X6PYe1IOOpGFpyEf57Tp755/wB8ycn/AHrF8s8smc//AJGH/wDPx/8AbWifqWb9R6g3ibv5bhkjvzUchjH2a6QUPoee9btq21CaNNNGmmjTTRppo000jXr5xL3vEGMvRx92xm66pLcE9I72Nv1m+ADyGkEakfzxqf8ATzD9XNHyC88ZvJ/5XQ9Du/PQr/317H+D80YvrP2S/EZW3zKBYBdoZYpQATQBUBmFnuj1da5/9zxFI5Yo+yeyzH22VmYop6mNOT+1iBwQeWUFU5DArPShhXE1V2CLBQWSB4okkfIA/wC32N+cJ+aCRwG5gU/JV/coPIgC7DWCpA/5ibBBoc/Ud8sZWpuKlsOvHNRr4zH1nq3ImevYe1mqlTI5C+k46zIkNOGpiKkMLDo8+Ye07EVo9SuEvtY7TciJJSYV4/EoBxZzdWGshFAbq3bl4GtAP6rvVubP6qxfSQjEO37Xixbo0jf/AHeVuKsikODxaGGJOIZVHKUsWuhVdnp+3FtfE+REi3M23atbL4PL4mhmdx1J7ceAy1r6Y1MviCkFuGtnq0cdlMVct0MhAs0jV1hS5YqWIZLbfbXLIlMI9yGRFlmBIjkaiHQAOBNQPts6MlgigxDa1Njyo17kXpq5E8qQEkciB2AB38R32PB1NO6Lfl3YvmOhJ45z+X8l46HKQWNn7gpbizu/dmbuSxVjkV7mPu3lx2OhqySyRZPEZyvj3w8tWSTIrVih4S9nXcIMyNYXlyl9z/JcTSZEE4YAhCpdY1Ci+SMqcCpJ6Gq3vrDOXgmjcAhuShQo4/JXbmCSCCf3mqPGtS96m/Nb7jlvbf25jts2dvW6Hj9t87ywGHxlDbG6PLG1sdZTdmV2LbjrJLkka/eGEtZWjfvVrePw6pEsNZzbsXWfOWR4IlhKN+nM84VBE+VED7v6ZgCZAGYIzhnDBOlVKY9N33UZEp9pVjUxxchEoTnIsfzmKr+wM3Q/5wSTZIGpU/Tp8lbh2x512disTHJbh3BlKeNtV+ZJEGPylmDH5Wv1YukSTV7CZCKaIROmRx1JnaWGSeNozJiWfByEIcLGhnSi1K8fEAFbri/Lr/zKpH+q/QfwZ6n3HY/yTsH6MJIu75UeyZsJUFpcLOYe8VawUeExCdXNkcCt8bB6+PH8bytC7yiRVlbuSOS8nZ168gj8MwLDg/K/hex4wo2rHvzX3VGzd9d99GwaArq9fRX1LIiRycF4j2yE7HwjAQh7IP0vw7HTLRoVq7LAVzTweHqEdTVxWOr8cAcGGnDGfx8flT/3rD5G5SO13ydjf82Seq6r+K6/jWgmZL72ZmTdn3crIk7Nn5zO/wD6g3/trLa6attGmmjTTRppo000aaaVf1mY6S/4E3RLEvd8bf2/kVHBI/t5WGs3I+eQFtkn454+fyAdS+xsF3GLrt0kXod3wJH2OxWvR/xPkLj+udp5GlnXLxybqvcxpCO+q7Qd65y96kskwj7qzM3EsahxGe3DCMyfHZCWPR1Kt/I69myyegx7KlSbPEEEG7Hk+GIHgXV9139BcBmEZiY0RCygkgUShIYhTRryhuuSkGwTXOl5+2ZvXyp5GyNbyLldjWs9jPImS8WYyFLu5NpyZe7h61Czh5adalPfhsWMthtwY/JtXrBIqscuQt2HiSDrYy7bcGPIw4KMAEmQYljeSdJGyOCeKtX5o6sqqoKguTf38m/zdunqbO/Iu9xepciOfP2pztCzY0EeNE+FjSvJiyeyWbgzxzIz0xVmYkd6V3IbCw+ycVWzM+3KNqlmJNrVZq1XeGavQSJuvx9b8i4VrMd/A3sc9dqFK9hprUFk+zmK16GOZqcclh67YUUChxECsnsrSzyurCfGbJisNjupBCNHanqRWH1evIZMriOTdiNEP7VViGcRliwlBUIx+QoGiKs3resJmY9r+Rsb4UxuyMDQzef3rjNl5aaG9kZ8Fj87lDi4o2WzPtF6uex6/wBShaeStTLWIYWuR17NGxRns1ov8jJTb48dUklyFx37f2o5WCAEOYGWVTyBDIpLdsBxptVBlMBzIA+IINozOt8CeSsSACAPkPFC7vWfpbSTeprbn3DtmvbuXcPu/L4ubPbs8hZmSxgtj7sx20rdGKKBsPjsLkMpNfNvae1K8cC5CrFWMa1FyuPkeomOckpLNDTMs7R+7NlODHjzJCxFCNITIzFoYQtSAfLjyF0ZclFtuUf7WYlWQsSqk8e27cnpmugSR32QyuyNoZDxrnq27fGmR8brlMRksXNtTcOAGRuR2a1+HFZvb+5Za+7N8XY4a2QrZfb6U8FZw9jcMuebL4tcbJ/QLcs1XJxY4caYgY7J7JtowzBkapULNJPa8lKECuYcutfAnUn6bzN0xvUWz5W0ZH6fc4Nzxjt0/GMtFkMY0in4FGVvbaUpwkBTmrBwQK115eDMdk4Ke0MLlbdrM5ONMVj8llrUcSTZLI+9BBetyxVo4YFls2PfmMdeGKCGIxqihQpPlc7dySEBRcjgDwqiyALJFAeO+/8AqNfU71IH23YZVyspsrKxNpC5OVKUWSfIx8ECXIbiEVPelBcKAgF8EWgAbyUUKiov7UAQc/wo6j/81hmtFvsk+SbJ/k/zry000aaaNNNGmmjTTRppqD/UnQGS8FeTqvUsV2tcup1HLCXGywZCMr/BD1gQf8fn/RkdpbjuWGT9zBezX7wUHf8Au3/XxrLPQuQcX1h6dmUAkbpjx0fBWdjAwP8AYrIRrmS3syGeR5XMjSPI0gUK3DGUEzNzwXJBbhDyW4bjkEc5hOxU9kWWu6sj5f3uwD/8a+ku2JzgUIPbVUUKb/cpjFJ98QtLZs8bAN0SEH8menrxFvTL7i3Le2zXXcl65Zyk24kmyNW/Wz649KEOerB7Qqw3qldKqRXYYUDRQmF+0QddcR7lPj9RuQsbsys4CgPxA5KOhYA4hr+I6uhrzX1d+B/QfrDMz9y3TYohvG7wlpNyx8vLExyGQxQzmOKYwNJFwUe2YiHCKWU8rNVnkb0secdp1pb9DHbf3rtuVKlTJQYbG3shYXCVWlKVoseuarzT1KKWLf0UMtO1UrmxMkjVYpJ5ZMhxN5jyuPLhDHII0kV1Mi8F7IRlmIIQluAccR2LpidaDevf6aPyD6SSTJxMTF9TY8JcrJs0rrlIQ1JJLts8MeQw/Z7wxzKwIsIVoKvE1Hd1XI44DaFprOJtdKK2dnVK1zFwrDNDDJjJbu+7Lw2lSDHwKIalTrX7xhohVgjaUOXAvEho24vYYrCpRApBKM2afkKVQAAK+wADrwQ+mPVQkkiPp/Pin7Uxtt+482lD1xkUbcrWWLiqLAgX+7TXeI/TN5Z8s5ClZxuGo7Y28zNYyOZ3hsja9V2vLIiQSY60tbIS3LUVeNVd68eTnSaNCr1oI4u1DL3nEhVWhf3RxLMns47N7t0jB1Z41pPkWuSSyKFAa9T/AB7/AE7/AJK9bZdZG0f4DtoPEbnu0ebgY6xEWUjxZY1y8uXnXFYolhVaLTE9C9H07elrxp4+2zi8bmts7K3luWpd/qFjcl7aGBaWSQzrNjkqrNjz9OuMSKP2HiEB+sM9qNYHlITFsveMnKkk4MIYWCqscQRRwUFQSyolu4tmPGgWpaHWvoH+O/6f/RfoXYtvx9y2va/UW+QyTZE2+bhgK85yDKZIlx453n9iDFURxwryZvg0jHkxGrmvT1TF3e2za7EsZ8/jpPnse0azpNIOST1QRRsFHyW7MeW+QYTJJTHnY2bierJPleNADwAOxXg9keSaf5WnGP6d32QAXHgTRlR0OUtRqeh8nZm7b+VXoVerlhx/j/Pz/wDfzrFdaNaNNNGmmjTTRppo000aaa0jyZQGU8d77xxQObuz9y1lU/gvLhroj+ODzxIEPxwfj4OrjFbhlYzWRU8RJHkDmtn/ALak9kn/AE29bRkcuPsbngyk/wBkyYyR/wBgdcqe9gfdm6dwkS++FkIbt9kcjvz9v2xj3OEB5HKnk8DvnmSGtgn0eQsXXn9wsdUT4vsd39/TzZ5uUEPMDmwCMVHEAWeI4WStrxF355WADQXzLWUgEsjn3kaPoyqHEhDsP2q328hShPYN1RQfww1GHiak7YunAWD+3kTXA9dAkfLvjYutZAE90KEtW5ijf7SAe/JNXYNfEE/R60qW9/EG79w5LNyYLylmdr43PX1uWqlSo7W1jKwCOpDkxeBqVqn06pSFOrX9iBpYpfqpJHsN2Vil18R9gWAKAHXHsePA8eAdeXep/QO9bzPlSbf6oytsx82dsmZIomadGqMLDFk/qC0SRcCkHtJFwiYhg8jM5+PG+J/LElDM4fM+aJb9K7g7eJxs0eAgpXcbakyEMlO8+RrzLakkgowyUpZI3Rws7Onuyos7dmmFEcwVawLuwT4Fn6HQvr661G4P4/8AWC4uZhZXrAzRz4E2JjOm3Lj5WNO0gaLK/URP7rMsKmKgwe2ZxyIVhMOI8JZ22cPM/ljc+LuJhsVi9yy7drQVI9xy4+tYged4LdmSGmLjTpLLHCkbuY096Z51isR9XmUrXQfkS3ELRugeh1ybz8qBP2dTkf493mRsKaT1dumLkw4OLh5k2EqxpnnGjlQSskk0hgVnl5MIvm4jXnIzlXjsT8bpDQxtCrNJO7Uq9OmZr0qyW5zVghgFi1JD9r2LbKJ5TEoRWd1Ufa2qSOJAxZOChgpQg9WSQQ1lXFgG0JAPR7sazmaDIx8aDGWeXMeKBUbKlAD5DRx8Glewts3EtIWADMeVDrVn3pWhr5DybtQRdnNdr9xwvPtoaeMtSDqpB4UBo27sexckDhfg09wfjhzEA+FWuv8AUyihVjxfXmv41rP+ZpJ8b0puhlCqJXxIUNjm6y5UQJYgKD8uX7QeKizferbQOAB/A41iutNtGmmjTTRppo000aaaNNNeuaGOeKSCZFkimjeKWNvlXjkUpIjAEchkZlP+jrkEggjyDYP8EfeuQSrKykhlYMpHkMpBBH9wQDrlP9Re26Oy/KfkHZlWyWr7c3XncVj4bpSOaSpVvTfQlXICT/8AimNWI+8H4ZeONZ17hlx4ZGY1NBHIAQQAzKAwX+VBugSx7/cdfSb8fb028emNg3GZAuRmbfiSZEiWyGRogshC/uS5FJIqrN9XpQM/WkZm92JSyKHVnRgocAoQOBwew4CHkcAKwPXgLasoNChyBsNd9j+39/8A58HXpcUnTBCaYiN6a/g3f3fG/sEWSezfWtDexLFMSySOx6/kgKo6kvKPk9l7cxs45HygCg8kWpemblyFUp6BAHyJegbItqJAuutV+Bah0OyQvZ5EE8V/s6gcvr4gk3Y1kas80jxkhUWJlPZpfb95iflWjjj7Ffk/vJXuoPHHzqgTOZBGsYEUcYYTmUASOW+UYjClwOIsOWqyAB0dcxrTEsH/AMwNQCXw4gj9xIF3/YlR5N1cobel6yrYjZDIoVnZmYpHH15dyrH4LqoC+4SAwVm5KgCrxAb3DXIgMb8AFRfL6PQ/2Hkavo1ZkWFgwQ2tUAzfIcVB4kH5eQFFg9GjZZ3Z0jFVkd1SEkjs6iNERnIROX5WPgfACAKT2PUdhxcq3xvlSmxX15NAdV46+J+R8jURuKADgqW4RWKq3JiQPkxC0WsEHiwBXx9HVvXoPwdW/lNybimRjLhsVTp48uR2V8xLMLUx44BJgqGOJuArCeYqOnXUdursIYlHSyMWIu74Do14/wBQ/k9Dsg2dOf6i9zlhi2naUakzMnIycmvDHDWNIUF9imnZmB+1XqwTqzfUFrVTRppo000aaaNNNGmmjTTQfkEfzpprmv8A1I9t0tv+o3dklir/AEyhuLG7f3FUsWins35r2Nhiy1+oHZZlihy1WdZ3jWSvFOZRJNC79WzLbHM23QMxDe0JI2Xo8VVyQGHn4qykkgdEE+L1vD+C9+x39FbbiZGTG2VjZOdiKgPtsqRTGTHx3YWoZ4ZB7YJDslUG4kirHMz5WmztQylp6oZ/b9l1tVDFyw/tu4mQBiOCO4VG/Z8g66yi7ZSRZ7AIPQ6odGuuzX/UeNbDxANXH2/kCTbWwbr6UgniDQsFmrvWiSZ3LLaVpJKExWIoVejGGAYhuzOrKxUfJPHCNzyoDKV1ZOqs4LMo6NDiD11ZJsdWb7+I8ADzq5jnkAZEJJUqWAYNRAI7H/MQSLFH/cazFDduQHSA42gp4j5UVpWBUt0BYmTo3PAYopPIKEj8HVNXI+IULxUdAGqLECh2v139gGyAO9XUImmUSyfH9xrmoawOyPiaFV2T5/8AWVNtZm7O0i/UKGnPLR068UZgUsqA8gSsT8HnkK7sOvPKa5UqOQZ+YIFhWsqLroWSf7LVnsf21IKr8YTQVIwAGcsS7El6LEgFaoV2Fs1VnTLbRihheu2QstJI8nECXGMkpEh5KVqilnkdxz8hOF7SD7V4Gr+JRQdhbjteQ7Uno0BZs/Z6/noaitwyrRghjRSAH9pioPG6Z5G6ULd0W5EUSCbu/n0KYUVPGGYzj15orGY3G9b3pQoWeliaUMUCxKOQFgs2raOVZwZOUJDRsqxG8kieKMkExxciPtWkZjR80eATryBr5+fn3c/1nq/FxEkVocDbIyI1JJjmy5XllLk9lnRIWAIBCkGqay72ofXhmjTTRppo000aaaNNNGmmjTTS7eon0t+IPU9tqvt7yht9rVrFtLNtvdGKmXHbp2vbl6M9jDZZI3ZI5HjiezRtR2aFkxo0tYypHIl5h50+DIZICpuuSOOSPXiwSCCPoqVN/dXqa2b1BuuwyvJt2S0aS8RPjsS0E4U9e5HYHJQTwkXjIlmmokGi7zN+i95mxNnJZDwl5C2zualLYlsVqmcyeS2TuSQuvIS00dfI7csyF+WmsRWsdG7kNHUjViq30m5xTlmaJsd2JJMZ5LZ/kfAkX2aF/QPXe0npT+onZYsLEw/UW37pjZMEKRSZuKYs+CVlHEylHeDIjsAErUxB8O30kef/AE4v1DNtytHN4mz+cEJKm5hcr4+3FFPwfzGauaW80ZH4L1UfnhiCwbnr+piqjOWNUGKjlX2ASvQPkgk/769HwfzZ+Opz7kXqQY5ck1m4OfjuL8cuUBF91YfiO6+PetOoeiP16QWZWfwB5ISSaaOR5F2fjAvCdVPLmya5coOvZRx89+DwBqikkau8qzKrysjMxTly4ddoRSnhYAUgWbIY6n0/Mf4+WJb9X7bxUEcfdyQ1m++Ixy1WQePggEdDTCbF/Tx9c+4uqz+Ls1tqMzVi9vcu6Nm7YrNCk6Sy+9FXytrI9SjPGyHHFyvKxAMwZawysdEkJkJcgcSgomjfYqifIHK+u+j8jF5359/HeGoDb8+aVviuBt2bkuWIIBBlhggUkgAlpBXR7GrYPBH6ZGQwl2jm/M+78TOkMsVttqbFS3IJ5EVesGR3XkoKlhYlK+3NFisZHJIjyLHkE5WXXeXeG7XHiVQBSs4DMD9njZFjoqTZB7Nnz4n6u/qOnyopsT0ntc2MHVol3Pd3jkmRCSC0W3wl8cMVIdDNLKEYAGI0Q1t2DweI21iaGCwWPq4rEYutHUx+PpxCGtVrxj7Y40HJ/JLu7lpJZGeWV3kdmMM7vI7SSMXdjbMxsk+P/wDB/trWPLy8rPysjOzciXKy8qVpsjIncvJLKxtnZj/PgAUqqAqhVUAZXXXVvr8YkAkcE/4BPA5PwOSAeBz+TweB88HjjQ/99P8Afx9/7aSJfVNv/DSbqqbl8G7yvWcbkMwuBtbaxmQXDW8ZWyMeOxMt23lEOTkkuC7jsrbmo4ctXwv9Xuw46eTGQV8lix3/ADIf1Cz7TlM0ckqxNDG4iaNZBHGzNIOZ5ckkdkjIWESuqs0ftvsWfwt6Y3BNkn2j8k+nsaHMxNvbc4d4zcT/ABDHzJsNsvPjxYMNxh8cb9Nl4cKZO4KJs9sDHkyYxmyyYUt+JPUNtvyrWwq08JufG5DLS7jqOs2AzE2HpXNpWBjc3Bc3CKMeJqSjMwZPG0admyl+zPi7aPWilQxiR27eYdxWLhDkRvIZ1NwyGJGxzxlDz8RGp9wMiqW5MyEUGBAwT1z+Ld19ES7icnc9lzMXBj2idDHuuAm4ZWPvsRy9ukxdpOS2fkRnAkxMvJyIoDiwx5cLCV0bnr//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwAAAQQDAQEBAQAAAAAAAAAAAAcICQoEBQYDAQIL/8QAORAAAgIBAwMDAwMBBgQHAAAAAQIDBAUGERIAByEIEzEJFCIVI0EyFjNCUXGBCiRhkTRSYqGxwdL/xAAeAQABBAMBAQEAAAAAAAAAAAAABAUGBwMICQIBCv/EAD0RAAIBAwMCBAQEBQEGBwAAAAECAwQFEQASIQYxBxMiQQgUMlEjYXGBCRVCkaFSFiRicuHwFyUzQ0Sx0f/aAAwDAQACEQMRAD8Av8dGjR0aNHRo1hWcjj6Y3t3atfbztNPHG3+yswY/7A9egjsAVR2BIGVUkDPbJHAGsbSxpnfIi475YA/2zn/HvrSTax0/CP8AxpmPwRXgnlG/+Qf21jOw8nZz48/HSgUVTjJjCj2LOik478E540n+fps4V2c/8EcjZ5xwdu088cE610vcDCRglY7smw339uGMHyfG8lhD/Hnx4/nbr78m4+qanT/mlB/bC5/TuOSNexPK5xFRVkh/KHaMnnuxGtFY7tYCuwV0ZWZgqBrMAYnfY7hPd222Pz/tufHX35VcruqEAPuEdh+gPH/0c/lyQoSC5yBmW3VA2nB3NCNvvg7iOQO4ycEjJwc6E7q4mXcQwLKRvuq5CuWGx28oIiw8+PI/g+P8wU8GSPnYAw/pYFT/AGJz25z9vtoemvEa73stbs9nUblJ9gGCkcngc884yeNQ6/Uv+slR9Ikc3bbs1pfT+uO9X28EuoLGord23pHtrXuR1bFIZmhi/wBOu57UeQo2fvqWGrZWhTx8Cx2MxbEkkeNmoDxU8aLX0PXjpyxmkvvUgX/fkLsKCyl4VmgSsdCDPV1EbqyUkUitHGQ8rAlY26S/A7/D/vfxMletPEK4XLoXwxFRLT2s0a0w6g6yqKZpoatbTJWRywWu20dVEKaquVXSVDTyM0dFA6q9QlfJPrH/AFMquvLeUyvdrTVLM929IHD4XT9jt/pVqmhcDYtS2sdqfTuDr1FnxeTeV7pw0up7memvQmSW7TapHQlaiZvHHxBoqarvclwt9a9ZTyU1Fb4aWlYUzCRcTIke0Ryh22RrUvMzAF5IyqgnrJP/AA5PgnqrPR2ezdK9UVFP0JeVuF9vsXVN1aTqmujVaeex19wqGanqKLKR/PNYaa2incbKapDvMoVrtX9eD1z9o8nJpHuxqTRXdijdy+Pu0tV6l0RjqWYx+NBWKzjHg0eum613GXUjUyO1VstRsNLPBfswkVw5dH/EX1JU05gvvyrPJMgFdPRKr0TptMkNVDSvAk1PInCzxlJY9/mHeqmMRXxE/hTfDZ1zb16j8M6fqboGroqCogrOm6G/zXCgrqn1SJWRTdQm4VEE8DMxeNahKWoijSPyoJAzta69Gfrg7ber/QsmbxCLpPW2EhxL6t0RkcjTuS0I83VNrDZvC5Sswr5rTOdhSWXF5BFgtwyRy0clTrW4lM+0PRfXFt6zW409HHLT3eymkF3tT7ZJaWOvgWpt9ZDLEWjqaCvp2WamnjOR6o5VjkXbrg78Qnw+9V/D31PDZ7/UQXWyXSSuSwdS00UtNT18tul8m4W6spagCa3Xm3SECsoZDIpRknpp54WLI9gEHbyPPx5H/wBfP+3U2/7/AD/TH3/LVBAgjIIIPYg8H99fejX3R0aNHRo0dB4BP20ab1ntf5HJNOa00tLHJJPCsMBEc7ezI8Li1KD7iyllYSRKUWPbiQxBPTq8dNQwLM6rPIFDHLAABwCAM8ADPBOSxweNIrdTVt9uBoYpRTJ7A8OyhsElsbjn2CgAbh7DJTHJ6orUalvJ3r9PGUKUMtq3kb06ww14YUZ5p7NqzIiokaKzySFlUAFiSAT001N5mkjd0eKjpkjZpJndEWNFyZHeSQqqRxqMszMFUAk6s20dAUMNVS0rwVd3ulbPFDTUNNE1RJUTSsqQQxQQo7ySuzqEA3M2exwBpl2U9bumM972N7JYTU/efUkj2alKPT+HuVtP84LH2i5PI6gySUcZQwnv7uuRlnSC3BGzU2kEiP1Xy9f26ujY2Jq7qOrYukMVDDJFSkofLEstZOixJTF+fNLKjoGKM25c7IL8OFxsk9O3iBJZfDq2RJFVVi3ispp7usU8Pn/KQW2jaedrgyegUbLJPDKxEsa7X10WlbHquzEVbJa41P2404lx4Em05p/Ss+oTh5HjaSSK1mZ7uKaauOG00sR9+GSVYoZZgDL04UK9XERVFfPaoHcqWpaOiauEBwc752kTcpIwxRicnGMAEs9//wDA2jWqoenOn+rLo1MshjulxvKWcVwyEEkFGKeoVX3ZMcZiVHVdzCMekavuJh+5jS6ZycmWhyldtSUsTlq2mzfx9NaGVQwNds46zZeYJXtxgNvetGFp4gjkNIR6v0N7lFDUNVPJG1ZDBUQ28SQRLFKGXzGBckAEE4Zm9lXJ1n6BuHQMP84tgtXylS9oqK6jqb6tJV1JqqOVJFpoaqGPYzSROf8A48RZYiHXjXrL27sY+aLN4+3Nj+JgsXMjYtyCaVU4grMs7iMwHYbwsIuEnKRiST0n/kRikSogd45GKPJNLKTuwoXZIrEoVAzwcc5z20ok6upaunmoKqniqViE0cNPBSjagJbBjESGTze+113EgKqnGsLUHb3tD3aXO0NV9ocRqLH5CMvqDP5rTemMvgNST3YjXszYHPqclbkuwRxETW7NmvLVkEPCuxWEoprenOnbpFNHWWqiqvm1d6+aSloXhmkkQoWhqiPN84AbPO3B1OAvIGvHTHiB4n9B/KS2jr242b5ZtlltdHdb7Q3i0xxyPJGlwtSinplp5PMLR0wWUSgsXcBmBgT7yfSF7hQ6/wBTd1cX387MPJk7mTtYDR+Rxer9IUdN4884cPhMVclv6vmmgxtMJXaW3sbcyz3Z5PcncDWHqnwCkgp3i6fvnS1to2md4bYVq6OGnhLF/LjcCseWXLKzTyOzSSAsxIIC9WvCj+Ib0/S9O2fo+6+FniDUvQU1FT3DqGiqrPeZrpWxoj1NZWUxhsyRiomBcQxuTFE8caEhBlkPef0P9+8BpNMjFo99Q5OpTqFb2hbUWrqRkw8KoTXu4jndjaUfv15LlGkBD7jytGYiDV48H+rrdVrVGnSamFMySCkPzdNK0SLGCJIFYeZN5aSfjpGgUkM2VOdw+g/ir8Jr7c/JPUYs7VLyLUUPU0bWGeRK5m8yE0teRSzlWbYY6eolJJUKGVxl0Hp07u92PTD2A7/a51AuZ0H3NfRuku3mF0rmqeWjzWV0rqPJYNRq/TFKalTOKzFSUWMVjCbebXGW8vatwrXljpRC36W4XXpywdS3qjd7N1U9otnTNUJIZS89omqqeSSspD8rTSxy00Jnp6GYSVK00k52FQsY1rP4t+GfRfxDeLPhL0s8Fm6j6Gpuo7/1pU3S31tDNb6a+WejuQSzXOqjqJlnoagNSVNdFUU1FJW0lGsH4qF5WsjfTy9VGE7o9kNNw6Rz+oc7N2109pfTes3z+MzNenHn3oyTyaerZLLQwtmb+EqRwY/I26w9yK/G8W9iNDYl2c8Pr7aeorDBR0s1RUy2ijpKSoqpYKhMVAiAEQnnG6doVXY5MkjF1YEsRvPFj4xvBnqvwm8WLvcrtRWq1UXXF7vN2sVsobhbaiSa1wzRx/zWW30Mri1U1zmaWpoonRQYWWQBQ3liX2CX34YpuDx+7FHJwkGzp7iK/Bh/DLy4sP4YEdSIjBxnOOM/fHv++tXByAfvz7e/txxxr16NfdHRo0dBGeDo0gXdzTNDF0ZtW46OxTmNqMZv7RFmrSR2N41yFitIrRxus/sxTzx+2JBKrWOZBfpdTVflo8M6rLCRwHUEoBztViMgHnH24Axr7T0L1dZF8rKaerIbypEdoyxGCVBUjLYz35KggHIGmNd7e02N7/8Ab/O6Gt6uy+IxWdqwVb503ejxF4wwWltvEzy0MzAi2ZYYorRelKkleL2DGsck6yRvqrpexdaWatslTcLlbKWvSOOokt0kccvlxyrMU9aSApMyrHOoB82EGIhVZjq9PCnxK6z8HerbX1VT9O2e/V9qlnmo3vML1K+ZNSvRrKjLUUn4lLG7y0h8z8KeQzgO8aBcbtT2twvZ3RmM0VpbStKtTx9KvUs3mzmKsTZaSGqlWW9eWVcbLLesqvuTO9dC8jyNGqF2U+LR0nbenrdSWmzz0ZggjigJcCKabYgQyzL6Q0rgFmwq+t22gZxp46v8TL31/wBQVnU3V8V5FRWVE1VFFDSTz01CJJGlWKCRBNmJMhEyxyqqrZxjSj1ca9LFx1IqN5oK6la9Ovep04kUszeJprFlpCXdm92SQySNuzM3jd5p6Gamh8qOmkdV3BfLKBFHP0P5rnJY92Ib3znOYdW9T0VbWvO9SkBkKF56ulneSQqFG5kjihK7QMbEULjAA9zn42o0dKRGxbFVPP2r1uG1KdjyO7RmRCytsU4qpZvK8W2PRNSVZj2pBzx+HJgk45O5lJX0kAg993qwPb5/tHZ3qQ09fkg4Wejp5YVwwZSgRwJBuUlWLbuCR2OB6ZLGw53H2Kt+Bkhbg26u8c0UsTB454lY/uMkgHwGDheOxBOyf5GrmRkqKXdH2IVhlTjcrKQFO5SdwxkE8MO+lQ6itFuniloLhJ54yyh4i8UsTAqY5HCltjjkgFWUndkEKdMv7ienDMah1NDq/RPd/uZ2oz4jr1ckNHVsdU0tn6sFiSYtm9KW8HlMPbt2uYiuZSYG7YhjhVph7UQWKXDoWqra+O50N7vNnlSIQy0dNU0qW2sQtuMlXb3ppFaoyQPOUh9gUHO3cL06T8e7NZ7G3TvU3RfSHWdt86Sso5bulbPfbZNJEEEVvvYrIquKkXmVKQERJIWIBJ48cD6a9YSX7VvXXde3q5JGDUBFozSuEsVk4qv/ADFpUhS0Qys7zRRUv7zZ4RIpmkUUnSEsc5e511LX8Ax+ZSU9OUC4HMhAL47kqqc9sYGsl18f+m3o0p+kug5bFUJn5mU3q8XKKYkk7IYN0hhDAr6S8u3aRkjCqvum+yXbzHRGC5SiyvuqjzzZHLrLKZvc5SP9vjJnj9ucKkZgZSCgeORpYmK9SemttojVo1FHgklgJgxY57HyyRtJH0ZYEHackkapy++KXX1wcSwPcaFEJEXy9F8vCkQG1V82sjViynkyHBBIK7SMhRouyXazJUK1HLaUwmXo4+2lrHQZfHnMpjpjYhnjGLTOyWjTWOxXgsQRVI4oq0kFd60UZhi455rRZ3hRaijhqYo2JjEse9FLMH2xNOztFHuUMsabVQqMAY5jNL4oeJ1PdHq7V1JdLXcKmFqaomt88dJU1EfltHIatreifMPJE5jmlndpZ1YrK7KzZXf05aN7cVcNd/sHpXFYfR2nstbw+ChxuNqY3CWcrUsu+fvYuhUjrVpY6+SLVJskKu17Ix2396wa4mKG21FvFM9NZaaCit0M0sSJSQrBBJKjkVBjCAK4EhKSSgDzZA53EDJaPEReqZrtT1vXN7uF96quVFSXKvlu1dNcLlS0k8Km109bPM8rpK9JtnjpPN2UlM8CrFHvKh1vSvUC0dGjR0aNHRo0nHeHESZ7tV3HxELSLYyGiNT16zQu8cy2zh7b1WikQh0kWwkRRkPJW2YeRsUlejSUNYiFg7U04QqSGD+W2wqRyCGwQRznUm6LrYrf1f0tWzpHJT0vUNmlqI5lVopKdbhTidJFYFWRoS4YMMFSc6qNa99cnfntjOlKldx1qzi2Fa3+r0IJshLtGgSUXa0kTOyKWDyS+40rFWduaknUjqXxa6q6dqVg8qCpSPEU3zEeag+kYZZEwOF778knHI5Ou9HR3wheD3XcD3D5ero6e5ET0i2yqmioY/xZN8ZpahJQqsSNgTYigHaFRhjE079V3u9aiWnm5sXUsMyrDcGKquu3gRpNHMHXyQVeZX5uXDIpJYFuoviLramWKkn/AAamfHlMYowCcEBW8wcISMFwx3EjbxzrLev4efQNMWqbVHVz0yhhJTSV84y2TveN4mX1KMEJs2qFOST3VnF/VcyFPHrX1Lj9C6iyAUsYLf6tgnaUMTs09OvNA7INldV4JG4YqXUDqVw/EEtEnl1r26onIcGOZpKY7lBwMoGHttO3HODnVV3T+HlQ11UZbXN1NZ6NGYGakFFdERMYLKlS6ttkYlkLHLBV5XJ1tsf9X3QdQLj7/auutguGllg1171OBiRzRRdqLMoYcjFEZmA4gfgQwXJH8TVnRxE9pAlDAtsrmeJTuHpGQrEnnA7YHb2LZcP4aHUc7NWUnXMppiilI6jpaGKecFSVJELSIWBC73A4O7g556qL6uXaKw0sJx2HwU6/ikGQoXsqfA22NylLarzOXG4b2lIJKMVKlg6J8RFmqpCq1VNSMvpVZY5X5b2aZHKFsgcKTgcY7nUdf+HL1tR+WxNbdY2RXMtPLSUgbdydlNPFE6KE4IDEcbiGB11dD18aP1h7Yq9w9MxOodpKtWlbo8dyJoYQLhpxGJ0PBpG2eNlKkqzKxdofEehuoJ/nlG7bSXjQug3EdlEjKhByMkD35Oo7W/CZ1N02XU9D3Yo2BHUSvBMGCBleRjTpK6OrDcEGAwIOPbSn6U764fWktd6WsMfJlZAsb1oFw1p68Acsx98ZOSIh4lDo0QmEbSBTDNLyUPVHfqev8vyKyIzuFDIFgYrGNrN6vMIXcMYYFgAQME6h148Irv035wren6829A7pOwr4I5ZtmFDItGsmI5ch1fYGAOGVcHTx8XrDDYOtCJ5qLqK4s2LM96jXrxIoBkmncNDHDAvLf3ndUA/x+d+rOtqxUyCR5YQSpZsvEAACSCxDjACgZIAHB5GtWeorDd7vJJS09HWllqPKjhgo6yWWaRj6EhRkZ5JGOVESlmwMlTxlKe+PqWw2J0VLiO3+Sq3c1qWKXH1cvjpZBTpVpgPu7VG4pEt64a4liqzVX9iF5VnM49tQ0M696ySktskdsmR6mpAghmjJMab3XMgkUYdiu5UCHaGO4sCNXH4GfD5c6q/w3frK31lHQWiVKuW21qR/NVToSYIqmlIKUtOZfLeZagiaRFaIReo4ku9KeK/SfT92whZDHLZ08MnKCWJaTK3bd/mS5Lkss6NuzEnfck/JlPTURisVrVhhjSI7DnO6UmRiSSSSS2SSeTzrV/xurFrvFjrmZHV4471JRxlQqgR0EENEqhVAUbPIK4AAGMAAAAOF6fNVXo6NGjo0aOjRrzmjSaJ4pArRyKySKw5K0bgq6sD4IZCynf8Ag9HHvyOMj7j7H8j2P5aAWUhlO1lIKsO6sDkMPzUgEfmNUdvXR23h0b3o7paWxEjy1NP601Bjasc+yulerkJhWj4jf8RU9kBySGCiQbF2A0f8ULVFT3u5RRtlRVy4WQgBSHyAvHGIyBzgHHfPI/TT8KHWE3UPhV0Ld62JEmuPTtrnkaLdsaQ04WdzwPqnjcqFBILFTxjMXuSks147EW7Ryq6yRoQdwEcqACPKsFYj8Tsd/HhSRrleqJoX+ZA2+WyiNQCzKFLHcSDkAbjtxxjH77yWuSGocR7dykbckqAwZF3YAGDnAAOB2yDydJvcyMgWQ2QXnCKiTs3HZY5WJeQk8nkRXKAeFk/AyAgdNKkVQZ58SSkCNWOS2VIzJIwJZmA4HHPdu2pQtGqMqxgLEXLNGI9ww6BVVQCqohYElsgpg45OubsZyUI/tyFEZjyZm5EIrBl+VXjIGBJcMxO+wG/nrIlKg3KoJyc5PBPdwcgd88cEZPAz75pYUKlAAJQvy6BSUHmMv1BiDuRQdwJBP5lu2qp5R7F322n/AG3JdVJCMzAb/IA2Hz8sN9wQoBY9OUNIpjVOzFmy2AQzYOcnBOSMjv3HPtpPKPKplZ1WWWNUiaXaQCAdu8JnA3EZAVee+M5AVbC5LKq0M9J1kaON4RukMu0JJ5AxyB2CgIze4UDIqghxuOs3/m1BKs9Mnmqi+SGwkwCYOAyPgqPTy+MZHGmmpgtNTFJBUehZCJNoLq28KOzDAYnIwgY+2Rjs4LB6wykNJKjX7+PWWnFFKagiqfcsD4JKoZhFHtAkRhkjLKszsP32As60XuURQpJJNTu9NGJBGqxByQT9RUny1O0Ag44P+rOqnvfS9HJK83kUdWEmZ0FRvmEacbAcsF3lS/mB1YcqoIAOl27e6ouxymlDlp41umKKwJrE0le1GvImK287yH21DkRxuHHvMWDRcQWtiwXGYReXHUPtm2rJ5jvIJEAb0sxJ9I3YUEHDdz2OqT6u6bt8kkc72qmf5VneBoaeKOWnORlohEiZfcFYyekhMfUcYel2xkuai1Hh6Ml2eaiZExtaEySWIq625YIeNUylvZ4BY0HHgFClfHIgyFacXOopad3CxfMRIpGW2hmQ7QTwCu1RwMYyBgaozrIxWaxXa4R06pUwQVFbIwRImlkp45pA0xTHmBiGdt27duyRnOriWl8PV0/pvA4GkgjqYbDYzF1kUBeMFClBWjBC+OXGPdj/ACxY/wA9bNwxLDDFCihUijSNVH9KooUD9gO/vr89F0r5rrc7jc6hzJPca+srpnJLbpauoknc5PJG6Q4z7Y4HYb7rLpBo6NGjo0aOjRr43wf9D/8AHRo1T/8Aqk4NMB6s+68RCCPJ3sNnlYqY0iOXwOMtSPzOweRnLlttuRbiQ2xfrUjxlt5W+XGYDKtDFUjICqGaJN2CcAkgFgMc8qM44/QJ8Bl8a5eBXRavuJtputoQA+Y8gpLnWLGjLklFBZQrYPAyBjGoOu4pevdmmpSnb3CQzcdgQ+zAjz+LeCACPBPz8nWZn/mJNPNuy5YAMwA25I4I9I7ekZJyMjXTKzHbTQzMCPQGbbuO1sBgP6STyc+wxz3GG65TUZaSZHSNpieCIqODyEYZ4WVQzcnO7K+xVBG3ID56RHp2CDdJHUOoY78OADHwSVYhPVngKeAffnJM8o6+QhE8ngqfxAQS4L4WTLNwoJ2su7ncDkEa0E1uZ4Q1iBIGYEcGb8nBIALbLwH47kKDv+QJ+OkqRxq5COZcNndswMg5Ix3JUjaTjBHGOc6a7t1VR0vmQ06rWMjII/KcEAqPxPMPlkoUcqo2B8gNkgc6xIL4RgYl4sAQoEjqzkghiSfgPyYEgfB2Ujw3ThveIq+0gBcnbwFznIyPbHcYzzg6SUPUENcQs8E0bZTJjYTCMIDJI7IEDlYwOdoZsjsMkaVPSudkXjG1f7dVTeZEJ4twZTH+ZIaQsWO+zq39JIbyene3rT1yqgkBxkTKCMsFBwW3esL6uTwQc9+debkqoqyQyieGU76eUBtu1wQ21QAFYYIbIBA9hg6cBiSuTqR+zIjSrE0jwRl1lWGHi/uPO6tHIdyeMSuvABt9yVAkkFmchUibJQcqCdwjGCN7upBBJwVDLtGRkjGIJW3FYHberbSx/FIDBnIC7BErB0AGBna6kEe54XPRMiUNhLDG7yKEWP2onKLAxEskkjbMgbfZShPgCT+UJsqzIaeBFZQW2ooAUP2bBLH6hnvgcffudVN1JJ82ztH5iqpclwzqPxBvRVQcMexO4Ag4HPGpK/SVSn1P3J7eYqvEqpPrHBJMgVEArNkqasoUj8mkb3HYMSGI8+T4sexp8xcLRDEAd1bA0gII9A2hsnknJJJzgYGP01F8dLlFaOgetq2WQgx9OXLyc5z5zUE/qOMY2llHAyCftwbg6DZQP8iR/wC562L/AOv+f/z21+fsDAAHsAP7Dv8Av3Ov10a+6OjRo6NGjo0aOjRqqh9arCtjfUJ+qLG5OodDaUvoEPDnLRW9imbkFP8AeCkY2JA4sFY+QdqC8XLb8xUrIQSZqSIccZ2M6YyQRzt2nPZcc+2u0/8ADkv6t4cVtu8zBtnVFyjAyG2pUpS1gO3I53TM+G75YYOANV2NXsJUmT9wqfc/cmV0HJV9xE8qpPNd1XbcOF90eCF61Jull+Vd5UDkBiWZgUUn1EA+kYyDtweCBuzg67A2G5iWKMkpuIT0x4YZJIZ8EtjbwxJxjcVODpvlOnA0mVyVpQ5rTRVIY2lqQoZZ45Z33kt3KqNIIAdkD841YOQAQOnGg8POt+q7bDWWWhp2oTUywTTVFdTUjCSNAwXbOwZ0AcFmRWBKsv8ASQa78SfiZ8KfCe+ydLdS3utivwtS3eGlt9prLlGYqkyx0u+WjWSOKo82BneCVozsMcnZg2k6zeXpe6yzZ/A0tyVRGu3L8i8SUHJsPjMnUEi/0PE1xX5AAg7hjZdo+Hy8CnR7j1BZaWVs74adaquZQ3J9cSJH9XOFJHPGc61Cvnx+dE0tXIbd0F1Tfo4/N9dTUW2yRyRyklhHEZKmojjLktGrplW44Hb81sdMYmyByyR00Cs96zgta1aSoW48zd/sxPWCFiFDvLGpJCg7kbPcvw+1JiBh6loMH6TLb6xIyM/1MDJtHbOVOBz2GdL7d/Eh6YpxEtb4MX2CmSRTE9L1DbaiWNVb0uono4Vdm9wZRkHaSOBrvtPrkZEBpS0MuImV45MTk6N+RJU2Kh6yTw5CJim/uK9Me2h/c4NsFgly8C+ubVVrVWqO33iLJDfy+viR2VsEh4KloJF7ZON3IGO+dXL058ffw/dT0jw3ufqToirYPvhv1ilmp9zDLGKus7V9OzAkAO6RZAJPtpbtMZHJxyGtOJ68iTlJq0v7XtBQJZY3j3P8KrFTyVl4Md1KnpHJbbzZK+W23WKWkq4kjaemZ0do1ljSSNW8tmUhlwwAZsZwTkEat+w9XdHdf9PUnVfR9zhvdirWq4aO6QxTRLLPRzvSzqI6iOOVSkqOpLRru5ZcqVYuY0ldu3JqkaN7kbRbjYDbjNszctzuOMgUb7EkABf6dupJQSSyPGOWUgcDsN3IPbuGH/Mc9jqJ32OnSOaQqqsGy3sD3AI7ZypwAMnHfU1f08cXFd729rII09yRtUYmew24KiCk/wB/KgQH4JhZuRJ32fcDcDq6uiIRLcqI7dxUq7cjgIpOcHkjeAQc5GOw765x/F5WSUnhp1jIXKrJb5oIxzlnqXipwN3Y4D4IwMghfsDaxHx4/nz/AN+r11xN0dGjR0aNHRo0dGjR0aNVufrq4PhqbtRqBIwDb0dk8c0nEjk2LzskqpyGxHFMqxVf8RI33AG1W+JNN5kVFJycrNHgDJ9I3ZzkYxvOP1/PXUH+HhefIh6zthkxsu1urQvuono3hLbex3NSgH74wdVTO4Ntg0+26zh1UJzcfkZfahjcgtxRnKLyCMyRksPICtr+vT4vl2oLUpVJLhVxUys4U7AzhSxzwWQcr755B7A9dL713B4f9C9T9a1ET1MHS9guF6NOCqfMtR0xljgZ1U7VmmKRyNjCoxY8rgtK1dnq+RmsY1ZDNSw7fY1FMUMEU1iFftshlZYYV/OfIWYWb3pWmtGolOKWc8OA2grrctJDS0VOAYKGnhpY9qKu8QqIzLtUACSUrvZjkknvgccM4+qpb5dbnfLi5etu1dW3SdWlZ0SW41D1hhRpCXEFP5xihT2RQABpzWjcHk7vZcaz7b46lhMlpDS+Ty2srel7ek8nrfUEuMyDVLWRiGawGT1VjFxkHsS5LB4Sb9Ox9M1coTIltC8hoKRhRJLApQxRuZjD5LzOUbuS6s6kKfpXGANwONNVZVI3nSUu1JYwSSzDzGDMQJACAzqMNnZkDClhzxvfS73/ANY651uvaLWUua7maP1ul+PPvq3W2pFqaY0Vj8LkLGpb89WragwcmPp1U+6s27kNaOKVYI4ZYY5AFVUDzTzeQ6O8cuQxldsxxbSZCxTCBccEnHfBOcabo7xNEyxV8rVdKxJlMs0yrGmPVIqh9uR9a7ztyAB3OkJ7kau7aahkwlLRumcNgqulW1BhmzGIxk+OTUGNmzlifTZykUtm+1/L4/BxxC7m7MsFnMWLU7/ZVataBJEFXSxSuiwwxosW8tLGmFfLHaCSSXKqAC/uWJ4AyUKdShYFIRA+1lVdwEjwiRjHM2Gxv2MASce3duD2/bTUy5qFK9+aJslinXeyYI4rFvAzJi8dXkkmhWM3JdPzwxApdElk4q/LKthkxskTRDr/AKSF86dlqaeKAXKzj58zNCnn1lFDGVlpjUKok/DBEkauSCVwQRzq/fhP8d38PPFigs11qq5+k+tnTppaRK6oahs97uNbG9Fdlt7M1NunliWkqZERZBFJu3+kqXmaQib36yNkFMf7f9Ks0wKuWaN2QAeFO49xisZ2HLcEjXimodzoqsEUlTgZ3FjyM7RgBQffIJyoPvrsPdbigWXdGzyBZCMt6COcdyeQw52kEg+wwNT6/SvxMd/vjo0qTIlEZ3JhnbkytT07dUseO67M0quNtl5E8dt/N2+H9MsdWWHqCRlssSdp2EZXnABJBwc444GeOYHxw3eRfD6uhLBHq6u3U5VM7djXCOTABAx6EP8AqzwCPfVnQeAP9B1b+uQuvvRo0dGjR0aNHRo0dGjUEX1zMEJ+2naDPJEXapm9W4yR9t+P3FDEXYE+PIc17G4/8qEj+SsM62p/OtsTAf8ApzENxyRIoGO3AwDz9yOcjW9XwJ3c0PXPUtFvC/NWy3zoCeN1PVTIW549PnrnPsfz5pp9wGZclBj4sfkspYy+Rr4ilDikx73nyWTmWrja6R5O7jqjLZvGOsjPbjMUkkAj3LbdVv0V09BduqaWF6s0dRRyxXGmjWIO9UaeZHlp0fzI0jkKDIJOSu7njGujXxQeK1x6A8EL9U0/Tf8AtBQdS0ld0fcagVsVOtie/UM9LQXKopJKao+dpvmiIpIkaFllaJi4LAht2b7V3fuchkMj/bXAJJLnMtILOg62Rir0KX2OSyc/u4vV/tS0cbSzmIsT3oOVX2chTsJI0VhCdlKuyGR3crKm5mb1U6kAZDHASX1Ku8DODgH9xxKtfVksFNTq7KwhiRHdWbcxiVFLkuBjJ9We2cn89b3E6exen8g1OHUetNOZ7C2bf3/6Bo/X2nr9PJ4KrBNkpsnUeXUFbFy0qN2u+YsI9ONK1qGJxBXmELpo7UYSVR542VgjFIahQGQqTvT1AYUjJLKMEA5BwX3/AGoppSrSyqXhB9cmFeMSEjO9HRlwc985Ix3PCkSau0bJjNYV8daklWCrWPcaWfTuv8RSsRi3HXrt3Bm0NonB52/ijkBDHDiMjqulhLVwRRyV7EvtDpd5asJEClztUVOY5kBAJwJ9kSnYWO3YXCtwMaxSXeleLaZ8oDjliyjJAztyA/qKgFyfUQMZ7pnb0HktXXsUY9UfcR5OeKnp3Dab7P8AcOjjHkt02yVTH4LD0tPwI09zGxPfrjaxkclShe61m7GrTjCtrlk2Zf0NkKkdLMsYwuQFXYTyBkZyX2nORzplmv1MrSBZR9W0hyWk3sfpIBztO3cF4H2GRrs9CaXo4B72T/V8tk6q4eOSezT7eaqSKrRtSw5FbkktxqsC1beNxeQBEmzvTSzYiVVhaaP1W2SSstt0pY5HjmrLZVUqTGnlVI3nVQruQudmFOdu44ztHHHzpLr6g6Z646N6krYFrrb051XZ7zX0SvC0tXDbaoSSwxI8qKZh3iWRkXzVXeQBjTxO3t+vkPtLtN7EtewI3ryT1zUmmgkYe3O1cyTPC0se78HlduBQ+AdjqTW9PPaLrVUD1UNXJRskUktMX8p5FIDqplVX/CY7HJAG8MATjX6AOlfEyn8QeibP1lS2e52Sj6go5K6hoL38stxFDLIwpqmoSjmqIY0qogKiBFkLeS6O6qz41ZW+kRiVsd1HtKhY4vQmfuMSPKmxPisYrEgeSRcaMMfJ/P5AB6tzoqlEYnkK4/CVeDx6iB7cZ2pj9OSAdc2PjavpnslBRiTcKi+0+MMG4ipqiZh3xtDgEjnBHtk6sadWBrm1o6NGjo0aOjRo6NGjo0ai3+rh21yXcD0urdwyJNk9Hayx2bjqNxD3adrGZTGXa0DtsBYKWI5oEYqs0kKxcw7L0huVve40NVBGu+VI/PRMgeZ5ZG5Bn+radynn6cYzyL1+HXrSj6K8S7dVXF2hobnTzWqeoGdtO8zRzQzSAAkxrJCFc4yobdghWGqLXdbFXIMnJExmxl+lkKV6KSeu7PUuYvJVshWkNV5KrsyTVkIRpoj/AOtf6hVFrmfp3qCjur00spoZ3LwKwiZwyNHty4IGS2SpBBKgfmOuniFZYfGPwk6j6FpbxS289R0lGlLdpITcIKSSkqqWujnEMUkbyn/dmRSjo6mRmGcEFH87rjMxpqGvkcvcy0GqrOuLt2tPhnESR6001X0lk8BjIW1ooTGYvGrUyGmMY8sz0r2Krex76QLWlvzp3rS39StV04SajqEWSURVTRN5qzBYXSnkWWMFkyrCJtuF5GSDnk/41fDl1n4I0Flu1VeKTquy3Wpq6GorrFb7jG9qmhplqUa5U80c3l09RGpVKlWEYlUxtgkNrhH1XJqDJa9sI2Unl1phWwncXGJ2y1E8mVOUrYOGLJRR1tXPew9lrmkKOXgbGR26L5KPIe/HLTstWSXCneXzWRJSXBFUhgkG8SBEBX8Qsqt5QbKIy5znjjWs8/UNLTuDNcIo3qV2QuZVZSIZPMZcAbd4bAJdo2xxjvnV6RrYjG1u4mmqUN3IY/uHiNNYvKYezoXuDSt4zFYnUVLUWPFGxHmpb075TI4XhNYsGQNCttKnsH2zB5prafMljjjmYTLErR+TMrrGHLhss+SGZTyQAcEDOklf1TSQ0Zk/mdOEcENM0iEb43WXaGDbV2grhcZGVOcjhTpu42Wt5zVPtZO7j9W6kyOjtQ6kmwfb/W9O/BqLR2lLmB0bmMYn68a+mpaVXJSZmKnBIsFu57ESPXoRGoXBoyskiENHMxWST8Cb8NxCUhZQzBYgEcMBuOcc8AgMiXt6yNZIqmOSCWSN42V40MrRPxtU5kbDgguinnsclcq/Jqy3rHH5yDJvoi5ayeT1PkazJojL42rQ1BqTTOF0jnNRV6EeXsUJ8jzwbZbC2ZET9HymRyj0xJjrQq9Qq9+IFhtVZWWqeOeqnp2Mcj0lKpgSV4lVsF51R2UcZCgKS3LdztL4d/CN4s+JvSll64oqrpmxWzqFaiuo6O9VlZTXCanMslP81NTU1BN8uJ2hZ443k8zZhykYlXS99qsHctTY2rTqzWTAlaERwxuUX2o44hxcgIqgIQOTbqB5PyetdRRmsrpqiKJ3+ZqJpSdudwmmaUlyAwLHODk8ntwAT2IF5p+m+lbVa6mpp6UWizW63ssbkQj5ChgpZPJRvxDGGhIRQoJXGVB1a++kT26nwcGudYZGRfvrGCxeErVYjyjp1Z8ibs4kkI2lsTPUg3Ef7cSR7cnaQlbYs1ragt6SSMpknfAVc4REUZUnsSWOc8e4GuVXxPddxdTdQ0FoolY0VuNRVtPICrz1EpESlEz6YUjL43ZZ2ct6QANTbdOmtXNHRo0dGjR0aNHRo0dGjTWvWfiv1X05dxEAJNSlRvLxG7AwZCuhIGx+FmO/j+nfpZQ81AX/AFpImPvuRu59v19tOtimMF6tMoAO2vgBBOOGbZ39vq9+PvxqkN30oYy9lbyZCjWtIssihZo0ZwCdt1k291SARsQwA/6AHeE3qkV5pBIkbKPTgjPIY+5wckEcgn2411J8PL7VUtuo/JqJogI04R8L9AJyDlcdixI5ycnnTDtY6M07HXt2a8VtOCbmvDZ3jPuSKh5+/FN7cCcvdnPF/bhjdlRuOxj8VohkmRN3k7y/qyDtIXdiLGGLuF2oA43NjJAzm3bn4gXC22mrq2p4rksMS76eQqolDyQxEzSbZVWCJZTNUSGGUpBHI3lvgjSEXdN6Pe19u9zKRwIu7znH1LOPrSsxREhrOjMjTEKI5qS1OQkUzKjgFZ9aanqi00gjgrYqyESDyqGuY1Mm1QxJhkZleEbcq0XmgDB2jtnSvxL6Z8AfEG+SVtw6XufS9zkhzceqOlFNsonqWk8uFK22innpKyWoYB4qkUUcroQakocgftND6DhFW9DkZJobdxqAuR18iFjkrlWLWRbzjwyQqbKLFH9pNG7z8Y4SHcB5XqjqEvKP5ZbkmigSVgz1e5lffsUIKlkZwA74YqF2nJ51Vsvw9eCghttUOt+sK60XK8TWpJoqWywQw1EPlGQzzy2+OWOFmlggjeKN5JnljRF747uhh9F0J2qZNsnNLTmnijpz/bCtwrSiGSWvTx8UWPrpJIrMheNbcgj2dyyonUaus3UPUEcUtRWtJRkJIsFK7UdKokUtteFQJJWVVUEuzLkj2BOr/wCgLL4I+Ds9ZQ2vpWGC/wBPUVlPJdL5Rw9RXyoShk8hqiCrdGpLfBI5laGGFaZ22OSjFlDOd0phsDQWBq2Mq/kitE7L7jDcc/iYswGxGyFRx2IG3kCEiijVmXYoIzuYrkjGc4JJz2JySewxjIGtpDf6mWKJkqZDG0aukaYgjCyLlQI0UFAYyjFABg8Eccuu7bXFW1XRFEYSVFQRqFX4G4XYDffYAEDYHlv8npxt8KGZd3AIQrtPAyckBcdsDOcZ9gT2EC6srZmpJn3ZBifJJy2AMEH75GSM8nPbVsD6XtEx9qdT5Bhv9zlcZXRvnxDVtSuN/wDoZUPx/O+/VjSDbS0a5P0SMQePqK8/4/xrmJ4nTmfq6tyQRHFGAOMjcztk9iM/2J5B4OpPek2q/wBHRo0dGjR0aNHRo0dGjSO+oPHNluyXdCiqGQyaMzUyoASS1Ssbi7bAncGDcf6efHSikbbUwn/jAHb+oFPfA/q0opHKVVK47rUwH+0qZ/xqiR6gAIdQ5NAPC2pxsNvjk42AP4jYA7g+V8jc+R1HbuF+YZST9TLx3AB4JHf8z35+/fXSnw/lza6Y9vwI2Jzu5KDOCcAY47cDBGNMpy0rJLIVYgFtz8gcQx3Hlgd9j8j58bA7gljCkj+n789/cZ5HHvj/AKcWoJsopPJwOSBySB/0/X3GONc5vExblxffx+SKytuwIDIykNudt+X8gH+NyFSOCxH22sQRgdwfbtgn2GsEvy8uY5aeCTeDxJFEyMQQfXuQg+oZ5GSwGORx5TGvyVTWrSxczKQYIWRZ9jvIFZABI3neQAOCduXnx43ymUHzZFHlhDiR1YgYADMp5AAAweOCcEkk40pLbJF5clFQyKlR8ysZpKZ1FQSp89UaLaJsgFpQA5I5JONbqpNGp/NIyW33LRqS3IgtybY77njuBuS45ElgD19ywChWdQvGNzY2jI45OCeeRjIOO3GlnlQeYZGgp3ky2XMMbMSzBnDNt3EO4DuCclgG76UfD3gPbYEcmUAAnb/IePOwUHwdgGO+3z46wujYJXJGRznJGTyTnP5gd8cZ+xVLKX590JXn744yft29s6cX24vbZGkoIIeRA3kcuRbfbfwAP/0NvgHpZRqFlQckMQBu55LZb98HjH7g+8V6ncmiqSSN6o2PZQGTB/b9cY/tm5F9NWiYPTxFdZGQ39RWipKkBlq4/HxHiSACqvI43G/knzvuBPao4WlTuRTKc4xkljnj9AP2/XXMfryQydV3Y7t22VI8++EQcf3Of3OpCekmojo6NGjo0aOjRo6NGjo0axrlWteq2aVyGOzUuQS1bVeVQ8U9azG0M8MqHw0csTvG6nwVYjo7EEEggggg4IIOR2/PQCQcg4I5BHcH76ol+ufQmE0p3f7gYjTl8UIsdqnO1P0TKOVSJYMjYijXHZFv2pofbRSkVswWIySC8/8AeluvkSCfzI2wWVZDE2c7pAGJRwOfVkbWAxgZPYnoD4NXmsrOmrY9wg89Wp40WtphnKqrAiphyGVxjAdN6tnJAPBjBy4nimmWzCV2LKCCroRvuSGjLLsQNyeRAA2HjfqN42HBHOeBn8z+Z78Ed/7jV+KVMSlTuXKnBDKVPIBbKjAAAGfc+3vrlmsRMAPcQHfdRuFPgjcEMdvABBBJ2YEbD+fYYHHOD9s57H/v9u2vDxOSQo3Z4YE5Gc+2Bz9x7H9O3iLUTlgrgENs4JAb58H8thsRtsR+X/YHr0HXkEA9sdj3zn2Pb9x79tCxTREDax4BBxn2BI7clQeftxnGdZtPIVmB2mUhCybg7guAFCf1edyTuf8AD4JHk9YWkRs4cHBPb7jjjnHHYnsc5xnS1IZlbBQgSbWGe5J7Nnnjb+eDzgca7jD3A7xohaRj43Qjwx28bsNgu/lvIBOx33+MTMvIzkt7DngEcj2H+PfSzyiikkKvLnB7k/f0hvf6QeeBgadz2Wx1K9nMZHkrgrQmzFyr0eNu9L+flQT/AMrWDfJkmlYqN2SFivEuNtijlqI1ZiFV1bC8sxJwMccc8kk4x251W/XVdU0trqjS0vnSmF/xahjFBECpG7ABkkOcNtCjdgAtzq9n6YdO4vS/YLtVisRRjx9X+xuIvtDGS7PaycAvWrE8zfnPYnlnLyzPsXbYKqIERZlVACeRRwEbYBnIAQBcD8hjt/fnnXMG5VM9Zca6pqZPNnmq6h5Hxt3N5rAYXnaAAAF9gANLz0n0i0dGjR0aNHRo0dGjR0aNfD8H/oN/+3Ro1Sf+r/icTp/1W9z6GOrz4e3cyK5k4+1ExqzDIYnHZGfKVZ/mGtkrFyWeCNo2rmUyxwTIsbRIx36aKNqZSSZJIck7Swwg/wBQ+nIHJOQfuTxrff4cxVVXSEBYR1EMVTNBGYnCyx/isohdcesx4ycMrhSPScBjBvlsgwnmjZwjhuLAOoIBJIDcH32O5IPgsDuB58x8SIw5I4xwSOM5x37H9hrZo07IgIQkAkDOe4wTkN2OCD74P6a5ySyjlVfk3yCSxAO5O5+Rt8efP+R289Z02Ec+o+20+2M+wOsbKeSMA5ycAEMcYzjPGM+32/fWIJITtsCfP4nmx/jb4G43HyT/ACBv/r5cxjsPyznPPOR27f8AedZQH+oDd9iFGMduPbPfBJzn78DWbFOkZVYgdx+R3bipYb8jxDf07/G3nYbk77jpC7AKwICkHJOewYk5/VwOQM8d+dOtPCzIJWLcsBkjkAgAYxxj7EcAnnk66/CXqcEhllmgjklCe5ymDF+KnYBWYsNiCeCqCQSeLN8YVmij8xmZQAASxwOAOcnHOP34/TSp4WkVUXc2MjhDuByfSSF3ZPbnPHbjOH1+mulHktW4OOd5pEsXaUcFGmrPdyElieOGGrV/H9uSzJIkEXFZJWeVViiLnw62irgNZChYvudSFiIYnDA+ruAoGCT3OPYcirPE2lqYOm7pOkSxGGlneSap9McSojMWUHG8qqk4baoIzk+/9BTTOOr4fTuCxNOkMbUxmGxePq44MWFGCnQr14qfIks32yxiEsxLMULMSST1NySSxJySxOcY7nP3PP35765SSMXd3J3FnZi3+osxJPH3JJ/fW86+a8aOjRo6NGjo0aOjRo6NGjo0aYv60fp9dhfW5p2Cp3Gx1/T2ucRSlo6W7o6QerS1fgq0jtN+nWTZgnx+otPtaIsS4LNV54EkMsuOnx1maSwUdZQwViBZQwZQwR0IVlDAZA4wQSAdrZGftqwugPE7qnw5rXqLHUxy0VRJHJW2itQy2+rKAqHKArJDUBSwWogeOQZAYuo26rD9/v8Ah5PWTpXIXrnZzWPaTvzgJJnNGplsnY7W609oDZfu8bnq+X0sZhGqj3aeq4xLIPxr10APUVqem61SzU1Qkg5KK/obPsCCCnbOSGUHPYDjW5HSvxb9G1ESx9U2S7WaYriSSgWO5UQPGWVkanrAMjOGglYD3c6jr1L9Jf6i2k7UlfMei3u3dRHZDa0RmdI6rrT7AqJIn0pra3OYyB4MteKTbYFR8dM01r6jhyqU5dSf/akXg4PPpfhfbjnnvjVxUHj54G3KMSDrGK3kjLR1tFVUzBgwHIqKDkcAgBjwDx76TCL6aH1D552hg9FXqYReZVWs6WztZduWwYzz5dIvjyTzCn/D43JQtR9Vk7Rb3YY53SSAZz3B+/OeO/31KIfGX4f1XdP1/ZlYheFSOUDgk4SOAlSCTz3HAxnnSo6X+kH9SnUtiGOp6Pe5NKN3UNPqzVWidO1Y1bxvIuoNe1rCooO7caspB5fhtt18W09VzYVqMRgn1M0o2hRz2aRSxJ4GeP1GTprrPiJ8ArfkDq8VaomVNLbKyclgx9AWCiIx77sgYPIHfUrPp7+iJ62hh4MXqrEen3soJGm/VM7mc8/cLVj1LOy/bVcVo7EtQcwxb7Q2tWVEYs4MoOx6kVDYLusRjnajg3gh5cefMwZvUhAQKBt9t/1d9Up1d8VXhuKpprHRdSXwJg00AjS00QkTJWSSSokM53MAxApGwCAvbU3fos+kn2K9JeUx2us1mMt3l7rY1lnx+qNTUKmK07py7xAFvSujqk1uvVvQ8nSvlszkMxkK42mpNSmJcSG1WKjteJIwZajDAzyAAgHuI0GRGCMDgk4A5HbWr/id4/8AWXiVFJbpVp7FYnI3Wy3vI8tSFIIFdXSbZahCQCYo0giOMMjDGpXunvVFa+MSASNif4BOw3PgbkA7Df5Ox2HnY7bdB/vo/Xt7/ppkS+qbX+Gk1VU1L2N1les43IZhcDa01jMguGt4ytkY8diZbtvKIcnJJcF3HZW3NRw5avhf1e7Djp5MZBXyUWN/rIfmFntNUzRySrE0MbiJo1kEcbM0g3nduSR2SMhYRK6qzR+W+xZ8FumLglkntHiT09TQ1lJb2ucN4raT+YU9ZNRtV18dLBRuKPbTfLVdHClTcFE1e1BTyVMYrZZKJW+0nqG033VrYVaeE1PjchlpdR1HWbAZibD0rmkrAxubguahFGPE1JRmYMnjaNOzZS/ZnxdtHrRSoYw4268w3FYtkNRG8hnU5hkMSNTnbKHn2iNT5gZFUtuZkIwGBAgnXPhbdeiJbiam52WspaGO0ToY7rQJcKqnvsRq7dJS2k1LV9RGaCSkq6moigNLDHVwsJXRt+v/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgAAAQUBAQEBAQAAAAAAAAAAAAUGBwgJCgQCAwH/xAA5EAACAgIBAwMEAQEFBQkAAAABAgMEBREGABIhBxMxCBQiQVEVCSMyYZEWQlJxgUNicnOCoaKx8P/EAB0BAAEEAwEBAAAAAAAAAAAAAAAFBgcIAgQJAwH/xAA4EQACAQMDAwMDAwIFBAIDAAABAgMEBREAEiEGEzEHIkEUMlEIYXEjgRVCUqHwFjORsVPxcoOT/9oADAMBAAIRAxEAPwDv46NGjo0aOjRo6NGjo0aOjRoJ1/8Avn/Lr4TgZ0arTzLmOVyvJq39FvzYqrxnJW4qx9mKRMjkoVFeea2k0Z9+goMlaOCvLEzRu8/uGR4/a80o5bi4MFVJStTSyqAUUrK4VMF1kXLxAtt/pMGBJbJAIDipxTW6jcVlGlYLjTws7CVlelgLmQLEY2IjqSUVyZUdBgIVGSWm7iXJ6fKcWl2syJYhYVsjUVw7U7qoGki34LwSKRNVn7QJ67o40wdVxgnjnDbWUvGxjlVWDbJFJBAI8qcbkbwyEMPkBLr6CagmEciSCORBLTyOuzuwtyrFf8kijCTRkkxyBl5GCXR1760dHRo0dGjR0aNHRo0dGjR0aNHRo0dGjTdynLeOYYlL+WqRzAkfbRObNrfxr7esssqnfj81UfPnx16LFI67lRiuQN2MLk+Bk4Gf2zn5+NZIjyEhFLYGT8AD+Tgf2znxxzplXvV3AVgftql2xrf5TtWoIdfx78xl/wBYg29grvrGVqOnXdWXO30nniSpjLZHBBGcceCM5zx++t2C13GpYLBQ1UzEAgRwSP58HgcA/k+NNyT1oMpYU8fjBr497KNI2/jtKxwQjf8AmH/Xj+etRLt02xCjqCiZ84wjIMn8As2P7jwcckA53X6av0Y3Paq1VwTuMLHgY8gAsDz8j+eNQP6rfUlyKtXfjvHq9OK5Yb2r+Rxv3U9mnG47vs6rGR2jtWowyyWkQfbKSImWY9yQ76s+pn/TqU9o6SiqLxdKp0FVJSxPUNTRsokWnjhpw1QaidQwMuztwjHPcYYmD0y9KYbsz3nqqRKKghVmoqSpdKdat1JQ1MzykL9PC7IywB907Llh2lKvGPFfViDJIOMzzPjcvUUPRpXw0ZuBEaSSFZLW+y6EAaIS+bKbQN3oO5s9E+ucNzmfpOtSexdW0SFqC33hWpZLnGqtO1F3KkKErY1CtSLMM1UZ2I5ZDpydX+lAonW/UoiulhrJNtXUW9klWhZmWJKntwbxJRsSRN2fbTyDft2E6/XB+qHIOAc7v5+jLXtYm9Ugiv4d7sfsNGqh5fepF1nS/UmeSxTlieMvA7hBNBJOqo0PXl0sfqFdLrMyzWC4JB9Xbqesp1alGxHqGko2LvBWxTSPJC2YkmhYlFaNpAFeo6Bt3UvRdutIDxXm3mU0dxeklJkOXWNFqEASWkljRUmUq7ROoZtsoGbeYL1oOapQ5CtDj7NWwgkikqpZcODsFSTYfsZHDJIvaTG6srAN46tRbq6zXekpa63V61FLWRrLTzq8bRyI2QcMMLvRgySJuDRyKVYDjNZLr07drNWVNBX0jwVNLI0c0TcOpGCrbSASkikPG4yroQynGQFkerZiG7PH52AJDfaW1kcAa03tzQQjzvYUOW+fHgEqptoJBSrQg4xujIB/YMrN+Rzg5/A40j9p84wMjyCwyMefGf8AnnGlih6tcRtusVqW7ipWbt1fqOkYP/mxGVQP+8wUeR1g9tqVBKCOYDz2nBPgHw205GfA5/bXwxuoBZSP9/55H4+dSJTvUsjAtmhar3IH/wAMteVJU3/BKE9rD9q2mB8EA9aDKyErIrIwOCrgqRyQODjzjWGvV180aOjRo6NGjo0ag71o5JnMLSxdPHmenjslJOl/JQd6vuIp2UffTtNX30Z5fcLIZQhjRiqyK30yLCjSGMyFSAFwT58YA5JJIAP2jnJ8DSvaKOOrmcOy7o0LLGxX3effhshwpwCo5ywONVgv5e0I3FVkggLKXsAs00gPcGaSUAkbPmRjtF/Iv48iMequo+opZJaFVkt9IrogMSyidvfwxZBkIePeB2wfJzkCY+membJsjrJWSsqNu9UYxmJCBgxqGYHdjICMA7cbfk6hXP8ArB6ecdnMeR5Xj7Nn3TBLVoyTZWVZgO32itZZYEdCdSo0gZdqSAd9Qzd+sek7FK6XjqK373Zg0feNbN3BnKPEiTqJMsRIuQQSWYDGNTPaeiup7uge19PVYjVFKSSxR0UZjOPcHmaMmPaAY2wQc4VjnUYc3+qrHcYxX3PHeGZTkkZMkZvizTx2PRlB8S2nkmsxk+D/AHdMhgNe4CR0wOqvXuxdOW36iydKXPqiRdzianNBRUOUDEFqirm3gqcuAtNI2Me0ngvTp70Qut7r3iu/UdDZPsH0eKiqrCrg7tscaRq3gDeJ1GTnkA69HpH6hZb1Chn5ByWXC8ZwzqsOPxWM74Llu9MAbCNfmL3ry1VKx2JIY4TJNKIVB0yB3em/qDW9TxyXSqe09M0lVBH/AEg4FzqqupUPJSLU8TTGBQVqGhjTMhRFb7l0geoPR9v6beK229LjfqqGRy87qGo6aCEgRytTEiniMj8xLLI2IlZmyMAydlfT/DX8guVrWbtR4vtCh9l55VMCRjZkmVpCdhexJEBVQu1IYg49Yem/T1z6lj6hNTd4bgYaWbvwxGaoRqbiJzJKe4HIHtDKxCLhlCtjSFYerbtBaZbW1NbpKcyTx9t5lhiIkP2qsZWMJnJLIxG45LFhpE5VxOhyGleoy5KalLkmBy1ifHPaOQKIY1kh9l6b0rEZUMpjZ4ANBVTTAovUPTtovVPcqYV9fb6i6IhvVbUW1a1ri0SrH3ESE0ppJ1EasDEXp1XARVYMCuWC83Sy1FDUJQ01ZDQEm3wQ1xpfo1kkLmNi4nSpgbcQd4WYnBYkePZ6N0Mh6ezS4VuU38viHPvxG9RSuatwAK32rwPIVhnjVVmjljcMUR/cDp3dbXpVFXdHGr6eXqi53Wyyv9TTrWW9adKC5ZEbNRMkkhSCpjCCeGSEqzhZcmQFj4+phpOshT3o9M0NtukaGnl+krDO9XRnLD6oOkavLC5eSCRHXthjGBg4NmH5VkIx3g1LcYTWhpjph+KkADR7WUDxpSQdH5FjoL3fIolenuCS9s5KECTJIOEIQKFGMAYGAfcwJyNQE/TNjldlmpJafuE+7lC3nJ9xbcAQec8gZ8Zz66eexmVjMVqCOpOpIcSaNd0IJ/xkkRMGHgEga352Nh4dOdV1FZM9JdKeVJyQIpqdO5HggcyBMOgIGSzcD+CdNO/9Jf4Yq1FBUJNTYO6Kd9su7/Sgbhj7hgr92fJ4GpI9LamXPJhaxZsLgQlgZWVgwoylom+3rxuWAnnjmMbRFVdoog7NIEbsd418yPAqOVeTcDGw+5VB+T+CvHPBHgcZ0xKhApJYCNuMRZBYHJyWxwvA58YIwBqy/SNrU0dGjR0aNHRo15L9GpkqlijerQ26lmNop688aSxSI4KsCkgZSdElSR+LaI0R0f8AseD+NZK7RsroSGUgqQcEEeDn41mJzLGT8Z5dybhL1o7Jx1jurmCw9V7+KuIs1acwGYQNOIJVitL7DJ78blCEYEs243qppa2S219JBcIypmp+9tEk9LI5U7fcimWIlg4KMBtLDggam+yUNLcLbQ3ykrJre75jqNuXSCsgYqyn2FhHKyh4sPuCsAAGGDDfIuEcGhoGtk+PVjSnDLJAKOKLxNrvY6R6ksUo8hmSRZJW05kdipMYdWdO+nslKsF56ViaCpDM8dNHRI6bsszGIiCRXkAyXVgzN7+5nA1J3T/VHXC1HetnUcsksJQRTSz1bRyKGKhd7d9HGcgoRhF4Cqq4EWQ+gfpby2OaDE8kzdaAiVmxSGKvLDNpmjmihna8bMULaDQmQvLHtRPF2bMPx+kPo/fYZ6a23jqO1U7lt1s7MTtC5JZXiMneeWJD7e3uYOgKllGMSkvq56lWVo3uFmsddLhcV/ccF04VonZBEsLOp9spXCPtIUk7dTxxD0upcQwFXD4O/fxs9WJ45MtDiq9i/IryNJIy2MnQmSpt2PaYBH2L4Z5PDdS10z0B0r01bo6a0XStpJY0cPc3t4+s2s+5n71XSyJS8HjsqgUe0E5zqK+oeuLze6+WrulspKynkcNHb2uRFNkKFVTHSVETVJGMnu7ixzwACNSZx/CHDU7EUuQz2X9+49tbt+FZZJDJHDEe6SDSaf2lZlUFVfftqoJHTyobBY44pHa811ak8pnaeqSaaSTMcabjLHDkghAWXdsDE7QASNM+vv8AcquWHs2m2UJiiEXYp544kjIdiAI5JSfbuIG73bAu4uQCFeSHuLPBTPae0u715A2yND5XQJ/Q3/hOz+yM5unbCxd0mkCnG9vopWL5wECFo0GAecc5GcknzjDe70pWORYtw3BV+rhAHJ3b1L+M4/ZSMgjJOvuni2kcs0KRu/lmME7fI8dmpQu9EHZ8fwf49KDpjpWmmMgjq3mfG9niaNDjJ9q90LggjGR5AHBxrXruoeoHTYZKWOJSNoEkcpCg4O7Mbk8eNvnPOMcrEGA9xx99PdrxKfCV7lGr3gfBLRwyzJsa2htEa/3QST04YEsNHyaSMMrAjvVkIGMke5d0pUgjBy2fgAFsFAqau6z8Q1fdBB/7dFO+0kDIVjsUhcAbxGBycEgcOyhQwVLckcVQvssGmklyFl5AQCEEzvGnyTpVWOMH8FA0elenvNGiiOmFPEPtVKYbieTwZGB8g8YQgL4x40gVVBcZzvqPqpdq+95j241B+7ciDJGASAxOTkHVweO46PF4ahUjGiIEllOgpaece7KSB4H5uVAHwqgfrpXZ2kbexySBnnPgYHPz/Pz51Hsp3SyEeC74+eNxAOec5GPk6WuvmsNHRo0dGjR0aNHRo1mN9XVeXC+qOPzKbjN7C4y5HINr7hqyTY+ygcaJKrDGzrvztCfnqMfUiMLT2+uTCzUsheKT7W9rjuIG4IO1txGQCB4OSDYP0hcVNquNF90fekjlXGQvdVZI2K85ywYZwORgcjOq5ZaTKT2WsfdS5LEXY1DY+5YjaOo5C+5JVkZHmXsBJSt+UbgkB0KghgV5nrC88jNW0NTGEekqpEIpX4DvBIVMgA4ZYeUIJUFcDMt22K3imSnMUNHcKZ/bV08TqahBnak8YxGSTgGU+4HGQc6q76gWMhgL72savtldtEUeWNgAe46aOVCSCB52CNKAQWB6huuT6S6SQ9mBkBPayrLJt3+Q8Tqdy5GDgFQcAnOdSRaRHUUaiRmLZAclgVzjAJV1YcgHjOG+799RafXX1AoyNB/UciUB12HJZH2wqlSoAax4T4U/IBOiPjapFFUTK8YqqlUJUmI1tYYhgbgAveyBzjCghT4HGiS22xSGahpmbDAP9NTh/cTk5EWT/PA4Jz+HFiPqQ9RkdUhvXI1DdgVMhe7kUkkjQcEqToMQNkE+e359yt1h3Cmrqun9u1ezXVSkL8KFEoLLgYY8EZ8nPGjNarFKSZrfTSNwxD0tK4DjHuyU4YkAgHjOdSXjfqF9RbDRn+oWImY/79q25LdoOwpn8/wdgEn5JI316xVXUayZF3rUwOC9XVORIOQ20ykbcefbuB+Dyda4sXS+07rVTM4OARTU4Jz+5j9vGcAHaMDnHmU8F6q+oGWKNazMiR/j3qFb/dUEnbsxKjZ7m/xEgsCCxHSlHX32TmoukzKBzvYnIGCSe47H/YMcH8a0ZLD03FxBaot5zglUBzkkHairx+27jg/nUxY7O35o0nyeSk7QF3ub20DEbbWiCd/jvR2B3bHjYV46lAu6oqiQoXLd3C7jydre0E7iBn8ZHHOUeS3QlilJQpks2NsO5vaMYYEbQSM4HIJwdTHxLlmOvZrAYTGP/UMjlMnQx8aRghF961DHIzOygsqIWdiO7uC77tDfT2sF+txrqGjo2SqqZ50gAQNsHvXce4fu2j3EqDwPuOQNMbqPpe5RWm73OuU0NDR0dRVMXx3H2wyOo7Sg7d7YQBjgFgo/OtM0ACqB4AGgP4A8Af8AQaHU5aqcDkA88gE585+c/wDB/A19dGjR0aNHRo0dGjR0aNUL+u2oicV4flxXSRq+RytKSTtUSos9WvPH2uRvwYZW7Ce0+fG9kMH1IRW6anYxhykgIb/NGTG+GQngHIHkEEZ/bU7+gbdzqWupC5AmpIXC+VYpNtO5SRkYkxkEMCRg/jOLE8ss/wCz1xZYZLl6u0oppWSSVZWbtFWO12BTHtmHed+32AAMWOuqyW7rGZbVWRPDNVV1IrpAkKF456jISFJRHyASVJbgFfkMdWwrekoWvNM8EqUtFOIzVtMyxtCg3GZ4N2dx2qQgGSHyeV51HV3+q8kM1XOUDWsgN2NBXliiVxrujlVy7gsCSCz6/EDfcTpgVV0vlyqJfrKQUlZHuYCGmeOJSBkxuGJILDJ5YhuBzg4eJsVmoIklt9S88DhS/dqI5ZHXkBkK4yoOQQF41C/JeGvVlm3EFGy35a03bpifOwRobJUfIDDXjpuSdU3u3ySRSmLCE8PldzKSfaS3uGPjxuGcn4WKWy22rQFd+7HgEMFGDxxjIOfAyT4I1HhqWKkoKSwqy6UK0Zbxv9sBpgP+FgRvej8awHqHXB1H1MayEhCFjdlVeQcNnkg444HnJxjKj/0VROGPZfbjJG9RuOQft+4Z8jxxpXx1/Jo47roCKw0VRQ7Logd+18hT/wAJ7mGwSQfO+nWtbLu7lchBXIKhUOC2MSZB2hfzwxBy2SQdYDpCgRQBSMTuzljkcYwBt8Zzuz9oOB451MnEstkC9ZZcjOY3k7Y4U7ERwQCiliGYqAGZh3Be0hNDQbrBurK91SMVcjb5MRxptVZCTwCzbiQFGWPOV4IGcnzn6boIlcrRxKyoC8rAu6edxwMKMnGOD7snkZGpasZqykxgnmlSIFBH+UhV9KCWBO9gntP470AAQN+Nee8Vwk7U80scZChQzMQxbG7aWJ8AjhT4AHBGvtBZ6IRLLDDE8u1txCoChJIwygc8E4JHJJwSRq2H0q4t8t6n8ZyEveY6dyeeDuB1LJXoWnlkG/gRbj8gn8iN/HiwHotSvVX6CrkLMlPv7ROeXETh/PGFTG4+dzDJPzAX6gLglv6NudBFsD1IgilxwUjkqoCicZJL4bg4woYc8a17HgD/AJDq3WqA6/vRo0dGjR0aNHRo0dGjVP8A618cLfpFHbBYtj+QVJAu9Ixs07tcBxrydkFD3L2sNnY+Gd14gbpm4NnmNVZVJ4Yk45GOeCQORgnJ1M3oRP2+vqWDgCqoqlCSOR23hlGD4H25OcZCnkaxRxPKVwN+Z4mBaJl92NmcxsSu17dnZ/E/ttgjX8AUCkubWi6VNTQSsZYSqTRbiEOcEZyeNq7QBkncoGARrorW2H/EKVI5lwkilo5AASuBjnngZ3DgYPPPJys3/WuCFH96tD7oG/c2B5HcNuQB3du9AsdAHwdbI+VXqRdJVbvUUbSEe2baCxIztZ8Z+wseSQVIHuXOSjU/QkMJBSplWIH7SzbMkDcqMDwpwCQAB8HJ8wPyX1ETOWZm2FkZm/wt3EfkTsovkE7J+O3zvbdRXdLncbpNNLPE0MkjMRLjYnDbt3k4/JQ54+TjUh2y001AsYidZdiruhABf7Tgfk5P2ng/sNMyO9HbYgBpHQnu8PsL/wAgvk/skeANfsAln1FQkLAM6tuYhXd/6eT44BycsM8gA+A3OnXT0/d3YVkwAWUKQ55yc5I9uCQACScHPHhVp1lDIxGiwACv3D5OyTv50RsnWz8eB8kdf23UZU5xyGJAJYkuVByctxgEnhQOAcbf0asM8g88OnJAHtCjAHjAzz+MZzp/42w6tF2HRi2VI0AHPaSfH7OtaPkHx5HS/Fe3lZApy8QOCFxh85LAEYB44zyP41pTWqPa4JOJSCVIB3Lg4GQMgAEA/DeceNTlw69FlQsGSqwWIao7v75SzFZFO9P47NMRpgwH5kDRI6lHp26rXwrHV0sFRHASx7iCRisgKsysSpQhtoyHXGRg5wNRt1DQNb5N9HPNC83H9NgoBRgVUrk7uFJOV5IyT8avx9JknvepmOrRoqpQwebshVHaERI0qqxQDt2xtqSQTvx/APVqPRWTddOyEwEoahxgABUV0jHAOAzGQEnnwcc86qh+oOPt9HvUNIxkqLtb4mJJPcZt8xwx921OzjBA/ICg7TqF1ZvVKdHRo0dGjR0aNHRo0dGjVYvrAru/oNy67HH7hxU2DyDKSde0uXq1Jm8EeUhuSMD/AJef10xfUiRoOjbzVIA30sUM7Kc8xrOiyfnJCOxA+SBnI1LnoWyH1Q6Zp5CVWseupQw+HkoZ3jB4P3NEFBwQCcnXPVyeCSGb7qElkkAZuzfa3aNdra8kfBG/38/GuubPUsssFX9VCSVZizKp9smMcNg4xzyDk5HI11ltccU8XZlQZAGNwBIyTyoIxx5/BGcEE8ZtfV19Ql70wetx7jtmStmZIqmTlvwy1ptLYXKCLCSVrFW1FVayKsN+e3YAIohErQNLZSVJl9H+hLd1ZS1fUV7jE9ogmqbbFb+3PC9VWduOQVMdVG6f0qUvtKe7MmVYgcGvXrp6k1nRc9H050+/096qIqW5y3DdTyJTUvenj+jakkjciWqVFkMjsNsJDIhJDHPyn6k+sXqjQ5NyZ+WTUOPYCxSpZS855Hn7Ed7L1ppMZj6XGON1mtXI5Ux1qWWzJj6eOqMQlrKozQxS2Ut3RPSFFEVpOnLSmzaJpKikWvmcMMfdU99jkg49oA5PkAaqbW9X9eXz6ioquqLokMcqptp6ianQO4JXZT0Aid9yqQzsABgb3yRl4ekicb5tyR+NW/WPnuE5D7ElyNs3xfivDsKFhgEfYZ+T80r3rUzyzO0FaBlvTqqNDVHZLKmxU9PWZiYv8KtQQqBtazUCoVBAO0NBzzgYAP4JAxnWtVxq6qcxS9VX+CoGWSSStemjRgAQC89er7iT/wDmfgY8zRkua+uvobSku8i59jLN2vya1xfKcep8gt372EyUGLhzVT+p4q1XvYd6eRxFqrkac9CKcCCaKK9ZrWpIa8kdXr0l6CuiiO49I2lsMESWiSS21QxllJnoXiY5DcKyso4/jT1pvU71P6UYzQdYVmUqJIZqSpqluUcciKrrvpK2OeILLCRIjw4GCdzKx5uX9I/1H0/WC9LxfkV+aXMpXyWQiyccNKISzVIMdNJgDUhqY9JfbSe3dqZGok7S42Fxdihs1pHeEPUP0It3Tgj6jtNY9r6fK0tG1pEFVXVyXFkkZnqbjPI4WmqtoRWIDRuVjVckNqePSX9Qdy6ulfpi7wC49QAVdel1MtLQ0clHG8IFPFRRRoWqYBI0gC5WSJS7kbNp0ow1hKUS+0iIZUVSI9t2gMCPzY929DRB15J7h8HpgW8R27akaxpvCqUjJ9iq4KgOTuO4gZzwxJyCdTTUwyVrs8xZirFtzgAkuv8ApAxgFjg44+AMnOi30QU5bPM89lZAxjg4vPDC7bKk2ctj1k7dnfbuBlA3r8WUEgEC3PoNDJPVXK4MD2voBBA5yC5+oi7zICANoKhQQfIYAEDVOv1Q1EUFksltiI3tehPMq+QI6Go2bsfacSgkHzkcAnWnPVmdUt0dGjR0aNHRo0dGjR0aNQr9RuNbL+hnqlRRe534dlrKLrf95QjW+h/9LVg2/wBa3+umv1rSmt6S6iplGWktNZgHwSkRkH+6DnyPjT89L60W71E6NrGO0RdQW9WOM4WaYQNx85WUj9865tM7aSqlhXZR2+6XDsqxoh2e4uT2qpGyzErpSCfHXLi+rJTyzQuSZDM6pCpLscthAq4O5ivgKMnwPOB2It7rJFFKrBY1QM8rEKFABJLMSAAP9RO0AnJABOud76vsbmrnrfzaKP8AqOUrPmb9iA1qd2eKNbQq+3GXSJkc1aa0sfC0Z7Vr0Y442KBALu+mEuz026O20jUSrbJO5E0ZjPfjrKkTTuu0MHqGBkLON21hk4xnnN6w09VL6qdZD6l68NdN0M8WZFEMlLTvTwow3Blgj2wAxkrheB5Iij0ez+X9NsvazE/AuPc4q2ZII5+Ocqx0sU1gVvdVYoHu165erejsSwzR1bMssFqGlkvaWWjGlqSaaYgnaofOMg53hgcgqSApUjg4bGQpxkaYdFJLQyNK9HFVAcPBUK4DryGHKg4KlgrA+1grjBGS4uN+mfGFz8HOp6mVx3FamQbPPwPkOTwuPyMkkGRFlMBb5jPNSx1fC+8Y6lnNxYu3mJ8b7qUsRNkGQ9Y1EkMU9IJFkD1k4jjjCs/9QRyTbZHUMsSIkT5diFzhM7m596KzR1Bqq5UCUlFGK2Skqp4IZWRZkRIe85UMjO6rujjkmMYYhCwLaT/U7lnIfUflef5Dkcvc5JnuRZS3lMnYwuGzdbieHFt0jGK42uSrw371OpViq0orZo42GWKtFIBdY+8ProrVAdg0jblJCg9uPHlVyMsQAAre1ck+caRroaq4SVNQ8vdlqHeWVkjlWFd/AWINsbYihQCVUEICFbyZv+lhMjx/1D4lBQN7EyzcgwDNctUrsUYkjzOOhMz/ANwC39xatVx5IaG3YikDRSyKU7rOVJOkeq0lo2qol6euMopgjFpJYoGkhZcgbZIZFEiyDlSvtyeCo+n1LPR9b9GtTzmjlbqS0xLUEFRFHNVJHMGxtzHLEzROCcHdhsA8dInF54b9gJJ2mISOXCsCUCsQEDAkAggq3y3jXg9UCsiS19WBUI5VTmVcMjcAELtKggMRnOPGcEeNdObxilpmamKNnKxspDqSMZPtYqdgODgna3kHPGtv0T1YnbmVyBFWGpj8Dj41QABRPYyNpjseGLmEuSdk/O+r0eiqIbfXyRoEijjoqeNQOFA7ztj4OW5z/Guff6k55PqbBDKzPJPLc6tmJB3bRSwjjyCoYjn86v31OGquaOjRo6NGjo0aOjRo6NGmrzrHnLcK5figO45LjGfoKNb21vE3IF0PPkNICP4IBHkdadwj71BWw/8AzUlTEf8A9kEi/wB/OlSx1P0d6s9XnH0t1t1T/wDwrIZP7cKefjXK1l61TKLax2Qrx26l6KSjcrToJIbVaxG0FmCWNwUaGaJ5Y5FPcCjEaGvHKLq5pqa6yTU7yR1EFSZoZEJEkU1O4aN0OPKum4Echhjnwe21tp6eooGpp445aSqp+zPDIA0clNUrskjYHhkdJCrL5IPBwNY1Zb0xj4qMjjhwHnNaLDR88oPyquOZ0KEl/E8gvxcKiLLImMsycixqYuumT91KUCyWkEImnEsd9em+oLb1DYbJU/4hbprjcLVSTVdNDWQSVEdZJSpJOhp45GkDrJv3oYwUw4YcEa5p33p+q6YvV4ppLHe6e32243SGG4vR3GCmeOCvmS3Ok7qIZFqKYRqkwfZhshtzg6ZvKKGOr5bEy4+f1Jfiv+02ap5+PB3PUSXMz8bfmFXIYTI4kNZlAMfEJp8LbBZLCPQszrBJcs1rLLlIHDKriULgqyo0wO07GQD3bQQC68YOSPk6SaqenNSpgNcaUVU4mMf1BmenapLwzRlmZuKfER8EFGO3cynUQ8dj5ovNpRyOxzaPjrce5kIpMTD6sLjjm48RnRw5pXWrLklnlzX9E94pG1X7LtbIMrPcLKxBEqsc7AHHBm+QQpYtzuI2g7eAuQckE6TKT6szFah6sRMlRgo1XtMixSim5GZcGcRjgeMM2ACdSDgq2SpYykLt71LzF+txnjskj3LfqvTF7nVTk08vJ6+Sl9mnHHwbJcYh+zxr0o4sgsluhbjWrkhf9vZhbAUHuEDGTumUtIpyV88Iy4C8D9jnzjNC/bLZrXlFLB97VCq9WKgGcODtJpjApClPeSyt7H3gSY+Er3sXmrvGU9WVci1Zx0GXxvqJmrdCKzxmtkMbx6tPBYkoWs1T5RkbmIyXI7ssUa4TCYjI16FiPJXVk8qm4WyjEgq66npm7XcaKsq1hZlKbhtWaZCcyewyDKjt+CCTrwkstfXpLLbLdeqmMTkxPBb6+q7O6IMIO7BHIrSxyvteVm39pUkxyQ23Po3iqnEuKcXwGPDJVxmJx9UNIWaWeQVIWtWbDyEzNYuWpJrM7SsztLMxcdwPVCKO7VN56iutzq3L1Fwu9XIx9vERmMUESsvtEUUSokargBAMceellJ0/SWPpWyWakj2QW6z0MC/cGLiBJJ5pA3Pemmd5ZC/u3lsj41u39E9ER8I5NlQgU5HM0a34gAFcfj+4HwT8tdf/AF/Z2er2+mFGlP08J41VfqpF3BVCg9hNm7jyxLHPxgDgEnXOj9RVW0nV1BQFiy0NvlcZJJBq6gsRyAPthXBGc+DjAGrp9SRqv2jo0aOjRo6NGjo0aOjRr8pkWSJ428rIpjb/AMMn4N/8WPXwjIxxzwc/j5+D8f8A3r6CQQQcEEEH8EHIP9iAdctvqDxqbiXO+S4CxEwbHZ7M002QC9eHKWVrSAKWGuyMeQwIBBI0Sg5m+qVhls3U1wo5oiCtVUNGcDDRPUSSQupBOBgAeQSODySNdoOgb7Hf+lbHc4pFxVWq3ysckhZjRxCdCG5Y9zfnIHILITgHTWv1MHyGlkOKcmrHKcYz1aSjmsO9uxViv1LSe3YhFiuy2a7sh3BZgdZaswWeExyoGEZ2y8TdN9QW64wPsNBX01wVMtEHlhYFlYxjcUkUFSuChG72+45W+obDS9TWG52qqiEiXGgqLdKSquRDPGULRiT271PvR1w6vsIYYGKD+vX0cekGTxUHI/RPn1Djs727GNHG+ZZOOzirF2U3MeaeIysVeKw04lis16Ynx91LE9eU1sjHJDN32ipfXSOknDXTpyvuUP05q52tdOGraNNqTGSamdhTTxxK8bt74JkUq7r7guqbXP8AT7RSYl6d6oorVI9QaNI7tUsKGsmZpYe3DVCPvxPLJE8aARVEbuHRJAASaI5H6QvVvD3fvr1Hg1KpXdoZTbydZsezWDFVjE8dnksAd/eUCBYq8cjWJ3CxnvSJFem/U36W1MkcMEl/kqsSmOjj6XrJqh9il5FCRTurdpFaRmBCouXYqONJM36XvVWlVp5h05HSK6KaqTqamipv6rqkZYzBWBkdlRY2XMjvtCluNWA9NfpHw81qS36iciw1axi4K1e3hON2o4TW7hNcSbMWLPbj600sEpZphXvSPUjiLzRQIqs3uof1HSVNNSTdGdMVuyt7gprnfaFljqAkjR76S2Usknd2ygxs9RNjd/T7bHcFkXpD9LtPHUVQ676qo+7QmLv2iw1q7qcvGJwK64VcaJGXibeqU8LnYQ/dUENrSDgvE8RwrAUeP8ejnr4uq00sCPbeaSSS3M1iaWWZViWRnZ27WCKixLFDEqxJGBWvqvqe49S3Gsv1/kjqLjVtCkrJCtPEO0qwxwwwr7IljRNuxcDIYn3btW06W6Xs/SNmo+nrBCaa1UfeeFHlM8jGeRp5ZJZyA8zyNIW3sThSFUhFUCdOMnckelC9sig6b9qBoj9+W8fHk+d9OfomZZ5I2UbcSqmB4ycEEDBIxknH5wRnI0m9QL245ASTlHIJBzk5HJ8fnjz/AOtbz/RzUFf0cqT9va17N5ScnflhElSuG8+f+zI/ga0BrrpJ0HGY+lrYPgxuw/cFzg4+OQcj/fGNcnvXeZpfUa6KWyIKekiA/wBPteQj+/cB/vq1fTw1Dmjo0aOjRo6NGjo0aOjRoP8An/z/ANPPRo1zh/WGv9D9b+fV0XtH+0eRkUhDtYp5TYQ7+R3LKG8HzsH4PVLPXiEJf6k7c71Rs7cnDoGbnHAycnGBkHHjI6sfp2Ir/Tnp1iwylDHGSz4BMJaPGDznchXHOPnGdUrtcklFkkMylFBVtt5K6YaJG/BH8j/76pre45GqWAXG1SAce3APGDnzyRjJ4OfONWjpKFTEpO08qSByckeSePPxk4HHGmPPxDg2Ym+8yeDew4Z2jByWTSCFnLkivWW2IK6p70qwiJEWsJH+29kknrXi616koqRoIqxoVwA0v0tPvk2qAO7JsDSBtqoxcv3MJ3N4XAbNf6Z9LXCpWont5dxu2KKmqCR7yxYxQiUxw7SzFBGEEW4mHt7jpCX0X9OxQyOOqwZaHH5iHDxW0bNXZpozgpDJjZakk/u/bzV3PcjKrRxuDJXjhlLu2j/191NNcLdcqh7c0tBLXPCRbaZVZLgojqI6hECd6ORAcgkMw/7jMuF1lTemvTVNbbjbI47iIblHQpPuudU8iNbWL0rwPK0nYeNjuBQAKQGQI2Tp0WfTLieauUprOLsXZKNaGpWsPk8nEY44sbUxUcgEFmFDMlWhWX32RpTIjy95MsgZTj9Rr9bElgtlRCkMrzSypHQ07s0k081S6xFoz2o1mqJNqLgAbQMYzrZrOgumq6SGouVPPPNTxRQxM9fVK3aipoaVC4jlUSSmGCLMjBmL7mZuSBM+Ko1sdSqUq+khp14K0EYZmWKvVgSCCJGbbMI4kRAXJZu38iWBJbsFRX3KYTV82fc8zABB/Ud2Ln2jYzMxLFs+MgADyqlI6eJYKaIRQQpHDCmWJWJI1jQEsWYhUUDliWxk5Ykl/wDHZkWWMbG2k0QSfy8/P62fn4/6HqYehGCSQDBGWUEeDkOSCeMjKkDHzgnHjLQ6hVmilyeBHweCASACP/vxzxzroP8ApVhjj9DuFyxMrpajys/cpJHf/V7kDgn4JDQEbGwdfO99dOujSjdM2ZoyGX6NfcOQSHYMM/OGUjI444J865DesbyN6kdTLKpRoqmCPa3kD6SBxn+Q+4DjAPI8asR059Rlo6NGjo0aOjRo6NGjo0aPno0awl/tMuG0ML6n4/kFKc17HK+O1cldrz/jXmuUpbGLlkgm1qKWSCnWaWGYhHY+5HIrMyGrn6g7TAGorgswjlqYCkkUmRHL2DtBRxkJJtYblcKrcEMCTro1+ju/1dd0vcrPPGJobPc2ip5Y+Zo4qtVqgkqcB41d5Cjp71HtZSF3DI25ZkilIkQh/wAh42ykH4Kt5XRAB8sfjxvqktyiCyHuABhk8AYIOAPdyPA5xnBPx83zp48qNnKYU45DArjPH3Z/b9vnXmW6e1gvnWyV35OiSf4/6He/5HjXTUrqJZY2CBSMZIwGOBnPHJJ+fIzz++d1chlyDg/OP/H8Z/555W6+ZKmNWTXboEEE7BH6P6/ZO9g/O/J6adRBKrFVgfCnAKo2DgAE+MAHyBnz+2smTIJ3D+fnycZ5/Ix4Hjxp6VclKyKV7R3aHaT2gHZB+Pjx57dDfk/xvdiopWCZiQAjgs20jwORjPJwB+/n9kmRQGIJJYDJYDg58k/+P+DS7DcKhQX7pGAAVAW/X68/vY2SCNfI6VoqfsGNMhmyMBcMMZ4HA5Ocnjzyfk61GVXDNyAvnPGSM4+fn9vxnxp2Ye1IJ44oSPfldEjCsCyyy6RNDyO4sw7Vf4J2wI+ZS6PglNVT00PMs0sKIf8AMryMqAADcN3jbk85yBxjTTvbRpBLNIcRQxySuSCEZI/exLDB2gDJxk4GAc66iPTjjdDh/A+IcZxlcVaWF49iqcUIZmIdacUlmR2clnlntSTTzSN5eWR2IG9DqbZ7fBarVb7dToI4aOjp6dEyWI7cahiWPLMz7mZj5LE64mdTXaqv3UN7vNbKZ6q43StqpZCoXIeoftqqLwiRwiOONASFRFUHAGnr0paQ9HRo0dGjR0aNHRo0dGjR0aNZGf2rfG6knFvTXlYM8d6PJZvj0kvZ31HrS1YcrXhlIG47HuQXGgI7u+IWB2fgWFfP1DUiSdM0FX3HjlirHgRtu6IiSPuFXOPa39M7CeCC+fA1dr9Fd4mh6l6qsx7T001vobmYyyrOJYKh6VpIwTl12zIsgwNp2HPIBwDyNgxyMO7tIYj5AHnfkedfoDYHn/TrnzcZFErqWVQC2PftyNw48gYGcDnj8YzrqLRBZE4AbhCGxlsgYIOcnx+fkc50kCyV1tifJJI32g/+/n9A/s/PSFIFCsd7AsDjaxGcg4xgHg/kD99b5i7gBAXB8EZBHI/jzg/sR/OlCredVUtJ+e/IVmKHz4ABO/gjZPyT8eB0nrA21e47bs8iOV9gY/s4GRjk7hnI415yQYOVVcHOCQA3x/p4GP8An405KmXkUgBye39ePOtk+f3r9jyfGtdeixKWG4ux8ZL8fx+PI/v/AO9CWIAHgLkYyF8jI/HHOBxx++nXSy7P290nc/4gL3ePI8jQO/nwNjf7A8jpQphCjDuFdzZ4Yj7QSfnk/GeAPAHk6TKiFsEAbQQf8uAP3P4BA4/8+MEWC9DcMOTepfAsTYoW7sOS5dgarYyojtbyMUmSrCxXiRR3Kn2wlknlA/uq6SysY0RnWePSeipq7qqwxSRSPm40p7UKsXk2SKcfkRqCWdtpKoGJIB1Dfqxc5LP0T1VWxVUFM1NY7iy1VSyrDTyGmkSJvccO5kZUijJ98rJGoZjg9UUaLGgRR2qv4qo+FUeFUfwFUAKP0AAPA66UgY4H/P2/gfGuLZyeSSSeSSckk+SSfJz5PydffX3Ro6NGjo0aOjRo6NGjo0aOjRpiepPppwv1b4hlODc/wdXkHHMsifcU7BeKWGxCWatfx9yBo7eOyNSRjJUvVJYrEDbCsY3kR0m92O19R22ptF5pI62gq02zQyblOQcpJHIhWSKWNsNHLGyujeGwSCv9MdUX7o290XUXTVyntV3oHLQVUBU5RxtlgnikV4qimnTKT08yPFKpwykgEYuer/8AZEcpW3ZyHor6lYTJY15nlj4z6l1bVG/Vh/IiGtynAVLtW9KAFjiN/A0O4nvntDt29R+rf0qTTvPN0p1JC0Th2jt3UEDsycgpGtypFYsoHtDy0e/ABZmJZtXu6J/XFDHBBS9e9ITd9diTXbpWqREl4G+V7RXuvbJIBZYLiVzkKgXaNUzzf9m19W+Emk7vR+HPxIzj7jiXO+IXklUEgSLDkczgbYJ/xdjV/dHwEJHUGXH9NXqlSMTH0xSXFPmW1X6hAPkEiOepo5B8HGwnk8DnVgbZ+r/0Tr0G/q242uQhcxXbp26oynAyGloqevhOPAKyYPHu40yrH0H/AFVnUVX0I9Q6z+4AZGkwE66BIf8AJeRvH5I8MW0QPx2rE9Mm6/p49YpYjHa+kr/QTmWNjP8AXW+oQxjO9Ar3Jl54wxJ24IBOdOaL9UHooRul9RbE/H2mivEZzjIzm0ggjIBGM54I+NP/AIp/Z4fVlkGCT+kGSqBmUrY5Fyrh2NgRdfmsiryO5YChtsd1C2z8Edb/AE/+mX1lfctf09UzFpEZJrpeLZSrEoCBkZI66UspZSwPbJAOM8cIN3/Vp6JUikx9ZiqbkGK12K9VJY5bG15bfTxAkgY/qgc5OBzq5Hp1/Zceqd16s3N+V8H4LR/H362AiucwzgHaAyI7wYXDxN50spt3I9jzARo9Tv01+lPqOV4nvt3stkhBBlitscl2rW8Er3JUpaZM+Qxkl92CVZRzB/Vn61ulIEli6X6bvt9qNrCKovE8FnoQcnazQwNXVki+G2f0CfHcB1qD6FfSj6Tegcf3vGMZay/LJq5r3Oacklgv5+SF1UTVqBiggo4SjKQRJVxNWsZk7VtzWu0N1azob0v6W6CiJtFNJPcHTZPd65xPXyg/eqMFSKkic8mKljjBB2u8gGTS/wBSPWbrn1Ql2dQV8dNaY5u9TdP2pHpbTC4yEklQvJUV1Qi4C1FdPOyEExLFnGrL9SLqKdfnKzrG5jVWkCt7auzIhfR7A7qkjKhbQdlR2VdsEYgKQ5x7cZ+M+M/Gf2z519XbuXcWC5G4oodwufcUUsgZsZ2qWUMcDIznVK6v1C+uGLwmdOf+n3l2Y5FXs5xsO2AwedpYJ6cU8EfHRdWStm8q5t1rdW7kp6qNZgja5GuLhsULUELXF5uscc3cs1TLMGm7JiilSLarKIQ42zOdwYM7IMgbgY1ZGGrDTelfpvWXG3f4Z6q2K32mSK1LcFulwtlVc1nlhlkvDU7pPbbev001PPTUkcr9iV/pXNdNDVRSvMnpR64VPVPF8ayNbhXOcLFyOpn7KXMjx2+mEoHA5e9iTXv5iWGtDBYyZoS3cYqQy1rFZ44hc+73D0pW66rcI4JEpqqNZ1mYO8LCJezLJFtaUhRuk2b4woYFCMtuOBH/AFv6cz9FVt3o5+oum7hJaJrZC9NS3alNyqP8ToKWuElPb45ZpHjofqlpa3dJHNFOjsKfsKZNf//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAIDAQADAQAAAAAAAAAAAAcJBggKBQEDBAL/xAAyEAACAgEEAQMDAwQCAQUAAAABAgMEBQAGERIHCBMhFCIxCRVBIzJRYRZxoUJEUsHR/8QAHQEBAAIDAQEBAQAAAAAAAAAAAAQFAgMGAQcICf/EADsRAAICAQMCBQMCBAQEBwEAAAECAxEEABIhBTEGEyJBUWFxgRQyByORoRVCsfAzUmLBFiQ0Q3Ky0eH/2gAMAwEAAhEDEQA/AO/jTTTTTTTTTTTT/P8Av/8AAP8A6000000000000J4BJ/A+TrwkAWeANNVw+sjyp5P25gcf599M2VwvkS56a92bu2p5j8UipkMmMxU3BTwNHLV7cGIT96gzOymbGZxa9REL4u7bycctitTlrWuD8ede654e6O3iHoGBF1pelPMvU+lMZlkmxX8uOSeBoI5JDPgSbZjCFqWFpWs7ArQpxJM27FlHn4rsGi2eYH3ICY2UFWB2lXUryRYWyeKy/Hn6sXmzz36mfGe2v+QeIfTV4q2nlMHF5Zrb63FjWp7tS1aqU85h8Rn81SF27mMnLP8ARbSwmCrUrVCZZMjmcsaiu8fyHpn8W/FPiTxP08rjdI8IeGOmyYY65N1zNhMfUWzhFC2HBmSpD/5lMh2Tp8GGpkklUvksIvSNBml3w+fNFjEsf5e1rco+1woIJIYcMCQEPc83rpRBBHIII/yPx/r/AMa/TQN+9+x7d/cGuL+dWmvnXummmmmmmmmmmmmmmmmmmmmmmmmvw5PIVsTj7mStt0rUa8tmY8opKRKW6qXZE7uQEQMyhnZV55OskUu6IO7sFHwLNWfoO5+msWYIrMTQUWb4/v8AJ7f0+dQnb840/wC2hhmfhk9yS5kIokSP8yELXinYuqglQXVCRwzLyDqeMABqbIjNEBhGCxHeyCRRKgXRq+x2ki4n6se0bfQsQAfm6+/b7HTH+fNsGf2c+q4aIvGq3lnFqkvZkBey5jhatGCeA5Djn5YKCpOE+A0Mby+avlryxn2wqE9IDeYzBKYsAQSosgi7AOSZSk0w2/UW1fcAWB9dcUfmL1EeUvEfri9SW79kb+8g7XyA8lbnuZa7Qv5rZuU3NHQ3NYsQfuOGw2TMN2D9tMdTHwO9mKWvWrNjVCTqG/G0HjfxZ0zxP4w6ThyTfpous5d9SzBJjPiA5jCeObFbz4zHEjuuJuMbOI9samIorUkeKknWIm85sczzLGGZhGpQkNvJUqrKBuYAFgx2gDdR1pBi/WBkcJt/eGx937Gx2/m8ib2/5TU3tunI5rD798eb6ymUyUuW3pgL2F+ln4yX7jXfPYnc0NuvksZQoVXp07NaO4ea6t4jwPGWRk+FZOg4kUcnUsfM6P1xzkYmf0XrImRV61hPjxp+sjzHZZM7HnjaKQIsY8ohJDu6l1MzZmdJFEGwwv6eGCXdu8jFUxowIdSmRJRllkO5nZ6cGgo7Uf0lPOW5PKfhndG291eY4/ML7JzuKTaGZ3JZK+Vo9p5rbWKylmnvqlJPce5BhtzWMxhtt7ijyWSGYw1Ws801cR1q6/qLwFg+JukYef0jxJ11vEn6LMT/AAnrWRD+n6lm9PyMaGdv8QiDyh3xst8jGgyPMZp8eNGkYkLcrpWbBlQkRSk7Ap8mViZoQVG5CWrfGGso62Npo7T6RbJrvtW2mmmmmmmmmmmmmmmvrlligjeaaRIoo1LSSSOscaKByWd3IVFH8sxAH8nQAkgAFmY0qqCzEnsAossT7AAn6a8JAFkgAdyTQH5Oo9zPlTZ+HZUN2XJMfd7/ALVCLccRj6hRLOZIoV9wtwhR5B9j9uoALTV6dlllEkf6cMN27I/l7R/1JzKt0auP2JqudaWyIl99xq6Wj8fJA9/n6d+NRM3qCtV7FwPt5bdWwbL4iaOwKrV0V2WpFk45JJ2mklTqztTVeHDKVRSj68fGjUxIkrOz3vkCqIAR22lislP7ehiON229RxmMNxaMBeSp3D0j4YC7570R+e+oS3Xuvcu45Hly9uexXsSQzfRJYaOjGYZPdhjjqo6RiOBwHjDiRi47OzMC2pGTiqqRx+XFKitHJ+7Y/mRMHUs4FkbgDQ4sDjgDUYzvJvZmIHAr2W7oUOD7d7JPN6jfIZloIprRmq1qyL2kZgJSscTsk3ZxwoJCFGk4/pMGYn4PEDK6kcaOWd8mCGFVEjEgMVCswkLuSBVWAwA2gFzxR15+42L4F3RFqPayK9xxZPx86ivLbtguRm/BIt6tPSHtGN1tUrVZS80LxwF3qWDKHPWQKWmjaIF3iEfHNTeIY50OT5gy4JcTYuyTzseWA7nRhGWfGlZrtSFZmUqCWTbWxYwSGFgm6Hvz2sn47i+2udD9TbduSr+pTbGezE9h8K+wsHcwtqLHQUo40o5LJpdxaz1WNjKfT5VZ7l+xajis1I7Ax0BkpxRSr8Q8W+IcfIz5opUSXGyMaHIkyjAke5IGeNceVlXczrISPNYM0LOQ1qq1TdRjaPLhlJJKgeWLHBVrbbR7EgGr+Noo+qrHyZDtTekm7bdKGbH5hZbeVwiV447kOVieaLIJXev9RFJLZanZnhqLHL2ksxNWILSLCnzHrXVekZudhTES4GRhbYFl84RQTQP6WSSQeW7BSEaNJDG7uyqJCGVRBJJknakIlYsQAbG47zwzbTye4G3v2PItB9KHknyl6YvKeyd/+MLCZLdW3Nn1Lu6KlfERZPFZ7Z+TgpyZTGWsdaMFyG59DakrLYhSO1SsTyWIOUrzdP0n4q6xk+GuidL6ngY0ed1KDHw5JIBC8xlwZRE2ZGUjYzRzpjM21wHETsGMbi9a+lrPHkh4CQVLsSBVqwvYQ4oqeLAG8AGjakjvH2xn6m6tt7f3PQSaOjuLCYnPUo7MZisR1Mxj6+SrRzxMA0cyQWY1lQgFXDKQCCNfQ8WdcrGgyUDBMiGKdA4KsEmRZFDKwDKwVgGBAIYEUK13yncqsOzKGA71YB17ut+stNNNNNNNNNNNNaXeQ96ZvLZzJ461betSx961SbC9nRYZK8zJAbUSlPdkliVbUU0gdJlkBhIjCgdlHjQ4GBiT4qK0k8PnSZdb5N5ADRq9ny0UkoUABJUhySaMCWS3Ksx4JAT2q6sgfu+b9u3fvD2Qu2Oj/PJPUxe6JDGOWHMjojI/AUFQAVYHgn7SRrnsyecCVxGXc3RYsQTxZYCuCOxB4q6K8a0uoY1VGwLqwfcD+tX9LrmtfjjnWzKAHcsvPI6nqpChn6qpYgcfcCxDc8ck/wAwYZxIzO420pKIbJGxdzAhbPYG1P7jwttQOLqQB73V1wAPc/3oC+eftr+M39XNDH9DcC8BeVbhuV5+OGKhhwSQpHPDc8r86j9SyMp40/R5ATiwHPDAkcixuG1dwUcU3BXknWSqpBJW6/PsPbt/UcDi6vUV5eAzTezlLEjq0LARszBGXsgfsSPZHIYsyOPvUEhXAK65HNhWacL1CZ3tGKxM7eWwXaD3HlkG/wCYhBLLZNrevQ3cICv1oAfYG+D2FfB1GWRoGzcavi4HjrwqIFWvGBBGVC9PYSMtCiqGZeQg6lQnTqq657IhSbJMGEpjgQLHWOgEcYpRcSIuygpIAVaUgAIFq9gBXk2dwr1G77n/AH9OfrqnX9VT017s3Dt7a/lfZeG3Hm8hs5LG3dx46ljmsiHbVsWc6+4DNCGmWrjLkc2O9zHUpYYLGRklyUh+nKxfKP4i9DbpK/4liRdRy4Yax8mNcdHaCOVHmfMDpEGMKMPKV4QUSYkSuaIEDqETTqsiKd0ZZWCVbR2GB/5jtY2e5C325OqC9o7G35uLd2Gxm28FmMllvepUqOIq1rBvZCWWcQwmtVeMNJYcThBcqxGstdXmkjVYZVf4/NAuf0p4sRczNy1aL9HDHE5mbKM9wPBvitmMiRoyRmSIq3ngDaBqko7vLCm2O3aAVu+26r5N2CKC7WsAG9ds/gz0eY/bFubMpkrc20Nw7H2zi8t4g3HX27mcDhN142tCbm4l3KMR+95LI01NjF0ZYLlOnDDaycxhsCxV+j/oVh9LyOpxdKysl4SE6XjR5HTcmHFn2ZpijM0smWsNzyRyK8YMYhiIZ22spQLcYuKmNvAZwHADxh2MQcH921jfA4BJBrnsdXBeE87mLFB9tZAx26uCx1WOnegDe1XhjkepVxzuyr2YU4Yp4UfmWKH7X4RolF31fDix4sSdVSGacbZoIyBGStATRoeYwwoMoG3ceAOdXOO5ZSLsLW0jtt7V9wQeOaHY1QE76pdSdNNNNNNNNNNNNQJ512hi7m3bG71rQw5PBLHJbtxgxT28W0iwyQzvGAZjWaRJ4DL2EaLKg4VuNWvS+pT4J8gESY0ht4JfWlnuQCfRu/zbSN3AI4Go2RErjeRyvuODRoGyDzXfkWBf21ovJkwrMEyNdOO4aCRyydQ56v7kZVuXjAJUwhkYkNIQORMbqPSZmZZojivyT5ciyxNfFgEoyekWV5Kgkd+TBCSpdMGuwLsV9ebH9aH3vX2V5FnCyJbrwlAQGWSToQO3ZjwHVOCe/LBl5+SjdiDGGN06UEwZcYItVIZkI+GDPHt3DhgaZbq7HfwlybIo/RiQx+CAQCBxwCO9ca9KWWFlQTTYuzMPuV62RmjlZerKQ0RhSvOOrN0DDhGYuhRhzrOTFilVd82NIEv1ecEDblKfzFBAc0SRaUr09BgCParklh3AIDdrHHpvbz7Ek/8AfzpFxliOGdKEM6N0lidJYbcLk/iQSiWSNlf544YxgH7OQBqK3SMWdFZY8B1J81HE8cgLXwykswK/bi+3YX52Aotzxxur8Vd/fv7ff1keotUrDj3V+CQkcUPtcvwOOispbgkkuGHAHLA/gbv8P2RhQMRL54liVbqrcKQTdk3Xt3AvXoHJsOSK/wCb+5PvyPr7dtYHncJlM8TWs1Oazcp7YeCBRHx1+9nHUBhxz7QlPHKkAEqeczOgLn74s3Pw44GtWQSoVkBHK7VDEWCb4pjd8EkZb2Vl2RuSDwf2gfWzfyfvz3rWM7d8D7WwuTTNUtubUxGUTuEy9WhXmyyRTSd5oo5YK1d0EzktYCgrK/Ys/U8ag4Pgfwf011nX9MssTMY5MXGdp13cP5e4RoplX0sVKhq5uhrEvOSajUHkWSt7ST717+/NccAe232zcLHanoY9Gaw9maGqiFYqtUPKVjR3ij7M6BjyfuHxyeQPjXeY2Zg48Y/SQuVRCTJMVF7QSKjQm7qgC/e799ZCORmXc47gfCjgiz2559h9PjW7WJxVLC0YKFCCKCGFRyIo1j92TgCSaQKB2kkYdmY8n+OeAAKKaeXIkaWZy7t8mwqj9qqKFADjgD51ZqqoAFAA+gAs+5P1OvS1q1lpppppppppppprCvJGOfK7B3lj40aSaztrMpDGqs7STJRmlhREX7md5I1VAPksQB88ayQ1In1cA/b3/wDzWLi0YfQ9vn21R/kslcgksvJKGgnJfq6hlEMqBXi6MGDFCCX5ALEleftGqTNxJCZwzBkmJIFKyqjrtZKokk0SSavdt7DmApB5FEX/AKdwdY9Fu65RPti0XhSQNCnaXmKLhSsZLSMG9t/mNuiiNAiBftLGmjbKxbjE5aJWuNCW3LGFA2EliG2kcGhSgLXFncNrA0tX3+/N17D+nHGljyjZgKhWMzsxIj92JWdQOWZC4UsVH5XleSQvYc861ZPWcmEAKVdjupd4XeE+C10xPbkAmga769CqPaySO5ugTXA4vv73+O+vUo+TS9eECL6ZFWMrAFiUQfAIj9uFxGpRiVPTlOQSpYEE6YuuytFGvkmEBAREFUeVYB8vah2CjwdhK2CASpB16VAJ4B+p5v8Arf8A/NZdivKcdlpI1maR67e3KifLxkjleVLc9WH9hIAcA8Ejk6mReIN5ZQWcxMA4UEFQR+6jYAII23Vjm7saxCLZAs1z9QPmhrNaW87lqxViggeWOWQ/WTSOYlqQGGYo6gxkWJGspFEYI2VljkacsVTqyTqGVJkY8cUDNE7O08pkEYx4xG5jkqj5zSS7V8tWUqrFiSFIOWxKJNCtvz73+LHxYv6nnUi4e6LkzqsweWNo1Y8MRGHXsFYE/wDq6kqPgH4B451YYshkkdRKXePaGIBOwsu7aWNc/wCb3s8H3JwZUANXZ5FnuL9vmvz9+2tm/E1R7O48T16stVnkn/pMGZoIGkjkDdyqorsSV4YBnVQylSG6OFSIXG5WUIqN6SpLNtYEMTXbcSig8uDYrnyMAugqyGBv4ofH0Pvrb/WOpummmmmmmmmmmmmmmvg/II45B+CP9H4P/jTTVBHk+lNidw7jx5jCmjmsxAkbqFCgXbSLwo44R4SoIHxw345Px71CGQg0opgrqrdhvWyTXswaj7UeKJN1thSQeCCf9Tzx8/1+mtcMrmIoJHZ2CuVCmON+IlQMzgJDzwpQNwPjkRKqE8L8cpOEErMV9ZAQqhbYo7+iMkhSN1CuStAkirxEjLwpsDtx897+fz78/TUfZLc9eFvdmfpIn2KVKySIpchCpUE/KsHYdeEDEMxC/NLmQoF82QbCPSBRLVfBBoc1RoVt57++QmNU3JskN/mH04+dfsrbmZQrLPwigFgAD9o/uLFW5C//ACbnjn4/xzDMDJTA2lj1bSbXn34Pa7PbWwSbasCuKNgA/T7n6fX54z3bm5FNj3QYQGRCJFZu0vHP3OCCCvTqQCx6hmUAckGRjxqJS7BFKilqwW7FibIscCibIFixzr0TCjfp7Ad7Y2BQ+LPNmq96Hefdu7hR/aHYnsPj2+SQPx8k8cEcfHIA44+CCCbqFlvkMQyg0A3Buux5X3APwSf286M24CrHyPt7fFfb4HbWwG1MpEwV414BYRyHgs6upVWJAAY9QeWbjgLyfxwdWsDoptVAG4I1gsd4pTYUhvTwL5A+2sO/fn2/Hxre3wbGJL12cgH2cWoDcEHmxZj4HB/tBWE8f5H4/kC/b/gR3RJIIrsAARx+aPNV7a24/wC9z39II+l2OPvXOtldadS9NNNNNNNNNNNNNNNNNNUe+pCp+3eTvIVVY16tubJz9vkPHFaJupGqn7CrraQ9vhlCqV4DNzYSLugjYW26JA3JBG1dhA4IYMbJY0VIFcA6q5gBI/f918fB5ofX49vbVfm+MpFRSeVT9y/BYhT2ILL1PX7iUX8EDgj7Q3OuayMePcWABLHv29Q45AHsDxQ5oc99Q3lMe4swABJojkdjQH/x5PP271qunfPqo8XbZsXLtryFtOUS/UGklHJVctLJLXrRxQosePS3bmErx2vdJJQSsgfp1+6I/SepTOwXAy5AKMaiB0XgcU8mxTZJG4kDbVn55vI8YdBxwGk6xghaatk6StwaNRxeY1+1Vd/UjUTwevzw570VZN6org+4iPVswMh+nl91JlkjjLSRSOWHZViBSIAFTI43L4a6uYhuwdgrlTLjgg1ZWhL+4X7iiR9tVR/iJ4bDhR1FjZqxjTkcngk7B6QOWNA0DwONTj449a/hfN3YIK/k3Dw2bLRR/R5azPjY60ruz+3BLbq16hbowT2/rHR3HJIYOGif+G+pwSPO2FlspAACETrFVWwSIyFQ1gEEe5+K1Ii8e+GJ3Ea9axY5GIAWYyYwBBIILTqkYNg3/MNkV8DVmniXyRgd3Ro+CzWMziQmrHafE5ClkVrm0rGs9r6OxKIBYEUrQB+plEUnTnoSNhxpo1USY84ZqW3iZRu7bqfb6Ae93RFGvbqMLqmJnhv0uXjZWwJvbHyIp9u8MUDGN22ltp27q3USL76302NIky1hIgViokQSlGkDRn+ArOB7R6N8FlUuASADqfBEG2h1CnkgMEJtLF9yNycHgkCxXIa7dOx57Ej7+96sV8BRO1DN2ZAORJUgQjkcofqJQevLcHr0JPIBJJCKDxq4kDCOLdV29UQbUEBSaJ9hx82TQ1JgHLn6KP8A7a2F1p1J0000000000000000PyCP86aapi9Y9cU/MG7YlLxC3Xw2Sd/hVZZ8PU7FS3KlCYCkp+OrBiDyATPQh8ZFLbSFLH0gcBzxuPFdwT3F886q8kMJGo0T6u18VQB+CTzQ9vjXOX+p15pseLPEy4zFzZGlnd835ade/Qsy1JcbRwr08jkXjsQOshkyDy0cSsKSQr9Ndu2WZ1r+1JI6N06HLypJslEaCFfMlx5xvWUsQI1A7AWNxI4FV/msfIv4qeI8jovQ4oMR5osvquT5EeTDJ5bY8MASSZgyjdcwKQbQRaySG7GuWrAZehm994qvu4ZDI4O9eeO/jqGVjxCzE1pxRhgmtTQ1K0CXFrK0CS1ZZ6wapWtVrM0NhOqtJclFmLGIsilQ4jG2uACaRFsCuAO4G0ncPgvT4FKq0gLLyxUV6iR70RfNcWvH2I1Jee3Tm/CG8cdj22jsIUpK2MzXzsTZmcq5jAXwthZMRubcB320zSVxJWe8LVz6C2skc6NNDJDrOdThShPKgAISQfyo2Dqe22ZzLvPcMTZU8V7auSrY5RQkLABWUCKKQspCkbWkEhAYGuB+66BIrWf+YdweLK7087gtlW9t7x8ibGwW6psRWzi1X8fZmbNMkcIxmAx+CwTY7c21665a1j58PBcrTXKFuolJLE7Pvymxl8uRIXjyZ4I5zGrkDHYsQA6oqrTohYhhuLEdgaNN1nGxmLlMYxvJGkjHdSwzWxcJSqlSLtJUp6bUgqKB2o/T39Uuc8MeVMM1/LZmXaOXyNaPc2LpWz2y1ERXK7NYjncwWpMMLzZigsvtyF6U9CO3Ct4I0LqWCnU8B4zGhyo4pHxZpFLOpFStGDYoTBChJBAO00BeqvwZ4oyvCPiXHnebJfpmTNCnUsaMgLPEfMhR3V/Sz45maaOtpfb5YYBhrt68aZBrsNRlYmNlhmSReUSWOQLIjR/hjHJ8O7/b2VuoVfcHX5nCzs6owKpYYWdtWRS2Lvk27bh2Kgndu1+5YGLgNuB3C1ZR3B5BI+q1QPPyAdWleBYGTaV2diSZ8s6BiOORXqVU+APjjlmPwSBzqzkuowSCQgHAAvnk1zV/F0PydWWP2bt3Hb7f7/Gpw1q1I0000000000000000001Ub68MasPkyrYKIRk9lY6V+/DBxBcytF1KEfcvEcQYFhyDwfxqYuxscqQpO2VCD32tVg88qSwBHBNgWB3rsqw5qxcff3B7fX4I4/r7HkV/VSXee6c7iPH9rDYGPZ2L25Y3/jM4ublwuWMSWItt7gx+SlyGLzOIhjxl4Y+eGwj4+OSrlaKT+9ZTsej8MwwSYuRKpk89R+nkiZlVVjWmWSO1cliBW1ywAFCjRP5y/izN1KfqOF0qXGwx02LGPVcbLMzwzsSy4mTBMHV4yYZfLZGTyrE6KbJIWincvh+HbKZC7mquWrw415VtrJktvZCERpuSvtb6hTPHgbTRDMWqoWzAYpFo2Yb4K15SdXEuGqqzkv6bZuYnBUSRoCV2gkXIhBFAAk1wNcNjp5F7oiu1Ws7lYAKxiNUBfIJBCjghvTr8cOWwGz5aeIydbdE1m82JyGPxeTnwN5sbJmIltY7J16E2fsri0yFeaC0kivHL7M9eeV1eVW0V44GEbicu4jba7xtt3k+XIE8ylDjawPB9QJCnnU3ahjXvsUEqQKWiN1A137WeCBwCLF5Da21JuLJX6jx7misLndx4mzVx2N2sZszuDa9CTLbkgGVyO9Mhltz3sZRT6mxNZyNqL74YqYEssMBzeHzHkDCZCJpI2WNYAZpYl3SDe8rSSugFvuYrdVZqqvLQSXQYiuSRW0AWed1lWLE2CSzHgEkAzx418bZDZWfw24VxWcv1sZ+xZqtNPa29PiMvTzUFm1hfo7GHG4f3SDLRUcr9lGvbNZcJn/3SOmmJu9J0OKfXG24ho2UFnThZE2AqyfFnaR7qeVI1wvVsc4sqZyxSs2O+PkKFMbJJyZolUBJTMJBE42qjbfLkLgBSddznpK3RuHyP4r8eeRN17aqbQy288BQ3Gm2aWUmysOKxeZU28HXmvzUqHv27GJmpW7SR04K1eSwsEXdYA5+V5WLDBmzQRO2RHDM0PmtSb2QgcKhZQBJuA9XO0Ek+/7e8GdTz+t+HeldZ6jgxdNn6nhx5y4UUzzrjwZHrxlMsiRM0jQFJHHlqE3hBYU1dp4YrmHYOMkP/u7GQsnj/dt4Rz/HIEAX45Hx8HSU2wPH7F7e1jdX4sX9tdrCP5Y+pJv2PNWPpx786lXWvW3TTTTTTTTTTTTTTTTTTVYv6gNArlNjZQKOJsJmqJb8Fvpb1awqn4/hbbkf9/PI1Kj/APTyHj0uKJvuR2/O3v7UL76hZVbkB7Ec/NXz7fX/AF41QF6j/Tr4v83SQy+RNt2s0mMxl/H1Za+5NxYRDSydundv46zXwmTx8V6rNZxtC10vR2UWatE6Ijwq2okHU8zpr5IxZfLhmO6beqSKzKKNBgSI659NA8gjixx3X/CPRPEr40vVcV55MVJYoGjysnGKRSukjrWPLGrh5Ikf+YGKsqlSCNUL+pL0ceXto3NwZnZmPq7x2Q9rKS0qa5bceQ3IMRfs1brrl6c2S+ouW+MdjmtSV6eTeWxjat8Gu6d06jG8UYmTHCuTIYJ2TazSKwx3dtpPIYlQ4QUrUAa7UK+Ldb8Cdc6VNlT9PhTP6eJZTFGs082YkBO7+ajPulcEBW8tZOV8302Tqt/MYS9Bbpw39uX7E2MlqRVkt2d0QWai0LDpTj9yZ7RMdFWkkhrPbm+lBWskalURbgSRShCpR1BDCpJLBU2AGEjCgSSo5B/ygGtca+RNFuSTEKbVdSrJKrKBYAogEH7EgC+K4E+eMfG3lPytmIsbs3aefzWQyd+7eyU1i/uGnRrSZGu0OQyd7Iyy1KVSfJLPLVvTvZpfuNchLE9mF1ijxy+r4uCvmZmZFFuYu0Zd2kLEHdsjDF3d7JcqB3piO2tWJ07rHW5zj9M6ZNNKwO5z5yY8akUZJcglI0XbuHqYNVLZFDV9vo+/To29Y2tam82WMpby1ueatRx2x9/bmo4WhhZzfktxtJDYCfXW8nl86Zf2+UQ0o7l1K0/fJ5BDzU3jGfIZW6SfLgVQDLNHbtKXe2VWcosY/wAoFncXBrX03w3/AAfwpsSc+LfPmyJWZIYOmdTy4caPGdXDJIUAJkkeWeyjBUQ+liZGGuibxNtzH7ZwWA2/jYGixO3cRi8FiopJJJ5YMbhqEGOpRySygvK8dSrCjyvy8pUyElnPNLGWnkeSXu7tITyAzs29yFHAtySK3CvccjX3fCxIMDDxMLGVkx8PGgxYEZi5WHHiWKJSxosRGqqWPLEWedW8eNK/0uw9rRcAFsTBOeBx82i9knj4+SZuTyOf862yUWNChQFfFKBq2iFRr9j/AHJOs41hrZppppppppppppppppppqvj9QSgZtm7Hvr2UwZjN48unAkAvYyCyCjEEBkGPdlDAgnn/AKO+H1RZSc2UVgVq12kAnmxQDkknsasEajZKghT7i6/NH/sNUobih5hniEkhiET8SNIfdDASM7KevHwByrf2gfIHUDnncgugZNxaIRttk3kSk2S247QOBRv3sgjgXD2gLZBujx9boa038qeL8/vKWS7tje13a1uzikppZTFjKJUjiFoNNjzJcjrUbFkXI7DzCpJce5Sp2Irsdeu1OXQk+KywtLjjIaItIh3lF3EKDuIBBA4oWQQWoA+rVH1PpGdltLJhdSkwneJYmIiEoQDzDcI3IEZi4YsVLb0Qhtq7TCmB8E+TUtiDKb82xm8THRylKOzmdkfVbsNqfEGDD5C3mrM0iWrGOy7DIWWeIfVQxrEGj7NWQMrBcllxMiOQOrMBMUiI326iOgQrINooiu98UaeHoHXlGyfquDlReTNF5kvTVOaHMJWCZpixWQxSkSMKHmBdp49JlzZXgPyXDjNqxP5Qx9XMYetNTy9mjtqW7icwTmGt08imHyNtKsecTECLHWsrLGsliRrRqrRrzxCvslk6azSF8EyRlg0IeWnRwhVhvUE0WLEC+BQNlSR5F0DxBHBhr/j0UWTDHJFlPHg+bDlD9QXikWGV0VclIdsTykU7biFQEAWWeI8Pew2Dw+MzGTbN5GlUigt5eapXonIymSRzN9DWeeKAJGyVSgdxKIlmJleRydkcqFqSAQxgDy4mYSAAqvAJJtVohgygHsOG46zAx58bFhjysj9TOi/zcgoIjKxJ9RRSQu1SFFEk1bGydbkbSsPHwq+2g9jiMs7AydV5kj9tUPRlARYizlWdvnoEPNljSPv22gUhNodjTCrcAKo5FLs3E3Z45rU3n/X8d6/3zq37bVYU9uYCoB1FbC4uDjknj2qUCHknkk8qeSSST8k8nUk1uYC6BI55P9ffvqegpFHwoH9te3rzWWmmmmmmmmmmmmmmmmmmtUPWdtWLcHg7O5UziCzs65R3HX7KWSwPc/abVZ+CCgkrZJ5Fcc9ZIUBHDFl3QsVLqP8A3I3Q2L7ix7j3AvntrVMLS/gg/jt/3v8AGuf/ADUx9wRtJAHfuXBPUsy9Q7RKQxCE9vyxPJXlvyNc7M7B1BMdbXLcMBdLRRTdg2b3H3FWLOolUL9uBfz8fUn/AH76jXIwxxLKlQRxySmWRQyu6GV+xYmOPl2AdlaQKV+0v1KhORUTMsO/yyiM7MwsPICzV2jiBZgCRvAqu4I5Otyr6aPN+339q79/78c6+ypjQ3TuiluVPPHC8gfcRz8qCe3VSB8Hgg/J1md1DcOdoJAtRuN3RrtYB79iBfF6FBfsbs2bIH0PPe+x/P11nWBpCGdVEiI8ys0aMx7kx8FvajJUv7aupmCDhSV7cc861R7y4VWX1LuUEneHUMbCkAnaG/mC+P3e+sBHyRdD5r5Nn5473X41sFtSOWNqod4mZeBNKR0BA4LBYuxILE/ySEIHIPI4sYRMoiDMruARJJQS+O6xAttJ9hZrjmwdZGPgc0RRN8g/Sq+Dx7fOtsPFmKG491bZ2+kwhjyeUqVJ5FAf2q8jlrHwT9zGBJOgBXlyvJAB1b41M6kX6TuY8EGhzdjnnvyDxXbvjsO4D2JFmuOSRX0+f7auHRFjRUUAKihFA/AVQAoH/QAGpupo4AHxr+tNNNNNNNNNNNNNNNNNNNNRf5r26N1+I/I+A9m1YkyGzs8KsFPg2pr9XHzXsfFAGVw0r3qtdFXqexbqOCQR6GKHcO4BIrk3R9vf7cfca8YbgR2sVxrll3Dk4LE8UoCe6spMxMhjaAOrnsIyQzdn/oleeVVu3Y9dctmSQZDh1reJCDRIKLRPYcnn013A+TyNQhK2CQR3Iq6q/wDZog1rBPrZa0CwjJTXesYj92y8HuTsCx9yUwxRKzkEK5SONfgsFDck1MiOilVyWkABFysLPPdtoX1HgEigKoCwTrZS9yL4+D9+a9/6E9vpr0sblbae2Hl5CgACPkr8/HLK5LcKwIB4/BJPPyRgjzoq7iOO1G7UgUSt389ueO/NaBFo339jfbnsBz/r/wDhkLF5eRmjb3QGDFfujIKliAercH+4njgEAjjt88c+l5WNrJ6gOwSivA96Pc2CvBFd+QdYbO9WQBQIo2a5N9jz3r51Mm2siy+z7tpnYs49wsE6s5JVFUfH9NSo5IYngM33EnUqDzWA82ZjuLesUAvJpQo+BXJJNcnXm1vjuD7jix35vt351YF6SYBnfKWAUJNZixFHKZuzNAOYoZK1M1ar2HKfEclu7Gq/gyS9QpHVuOnwnVR5anc7KQSLZVCheSQeLJoCxdV9ioSwJulrj2JHY/6nj8Vq2vU/W7TTTTTTTTTTTTTTTTTTTTTTTTVbvqI/Tb8ZeYcpkt17Iz13xVu3JzS3b64/HwZfaWSvzM8s1qbAPNSmxlm3M5e3NiL9evKzPM1BrDNKaTO6LFlEyQyvjTEHlAGSz7lLUg3/AMjC7og+2avXcX+a/vV6rC33+lr6ttuTzptJtg+QKQDtDNidzjB3GQH7O+P3PUxyxTFP7okyNpFY8LYk+Seayeg9ai3CBsfIT2LEBjXb0uFFn4DH6k8Vs3xHkqVPAoEm/knvZ+PtwLOoXHoM9ctF2Sfwhlp1Rm++lunYc6yIOVARot2Iys4HKN1DryCygjk1bdN8TEMpwBQLC1ljW1Nj0lZPSeTRom6++st0Pyb57Fq+nFXdV7+3zWs62j6EPWbbuK03iDIYjuy8y5nd2zqtdPtCDt7e5rko6hRyUgYE8uAWY8+wdJ8SE7v0QiJIvzJo6AAqv+MQBQ7hT9Qb48PkXySe/FEjn4BFH8nk9zreTxd+nL5dstXs+RN27U2nW7KZquGktbszIC8EhWMGLxET/lVlFy0EP5iI45vsToPVH2tm5UUSg2UgLOx/I2Juvi7IA7fAwZkB9C8VVn5+aP4+D7X82oeJPDGy/DWEfEbVqzy2bYibLZzJyJZzGWlhB9s2Z0jiihrxFn+no04YKkHZmWNpXeVusxsWLGQJGG/6mY2zH5J7fYD2q7IGtZJPJ/39PsNSzqTrzXwxIBI4J/gE8Dk/A5IB4HP5PB4HzweOND/XT79vf7a0iX1Tb/w0m6qm5fBu8r1nG5DMLgbW2sZkFw1vGVsjHjsTLdt5RDk5JLgu47K25qOHLV8L+73YcdPJjIK+S5Y9fzIf1Cz9JymaOSVYmhjcRNGsgjjZmkG87tySOyRkLCJXVWaPy3/RZ/gt4Y6gnRJ+kfxJ8PY0OZidPbqcPWM3E/xDHzJsNsvPjxYMNxh7cb9Nl4cKZPUFE2e2BjyZMYzZZMKW/EnqG235VrYVaeE3Pjchlpdx1HWbAZibD0rm0rAxubgubhFGPE1JRmYMnjaNOzZS/ZnxdtHrRSoYxY9O6zD1FYtkORG8hnU3DIYkbHO2UPPtEanzAyKpbczIRQYEDhPHP8Leq+CJeonJ6n0XMxcGPpE6GPquAnUMrH67Ecvp0mL0k5LZ+RGcCTEy8nIigOLDHlwsJXRt+v/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgAAAQQCAwEAAAAAAAAAAAAAAAUGCAkEBwIDCgH/xAA3EAABBAEDAwIEBAYCAQUAAAABAgMEBREABiEHEjETQQgUIlEVMmFxCSNCUoGRFqEkGDNiwdH/xAAdAQABBQADAQAAAAAAAAAAAAAABAUGBwgCAwkB/8QAOxEAAgIBAwMCBAQEBQQBBQAAAQIDEQQABSEGEjETQQciUWEUMnGBCCNCoRVSkbHwFiRD4RclM1Nicv/aAAwDAQACEQMRAD8A9/GjRo0aNJlnc1VMx8xaz4sBk57VyXktlZHlLaCS46of2tpUrPGORrnHFLK3bDG8rccICavxfsBdcn66+EgeTrWFr1q2xBDvyTE+xDKVLW/2tQYaW0AlTipExaVpbCQVFZj9qUjKiB5cRtUyxyS5EsGNFEheV5HsRooLMzMP5aqigl2aRVUAkmgToT1JnSKCJ5ZZHWNI1Ul3dz2qiKoZ3dmICIqksTQ51Ga3+OrbAuZNFQU8exmRVdri3Zj3oEhXar5dZjx/mihXCvTAGMqB7Pq1TqfGb4dT75mdO7bumVvO5YBC5JxYkxcUt3FGXEnyS34tlbgmKPsoFge3k3TB8B+uxs+Pve6Q4u0YmWoeCOdnyMpFKhgcqKClxgwIoPL3We3t7wV0s1PxQ224FIaYbrad5ZSlDcqEoNFavCBKXOebClEgJDiGio8JyeNWRs+/dM7r2oWzMWZmVQmXJAiFm4CCaNShYnhQewseBdgmC730LvuzBpCYM2FQWZ8NJHcKt27QsRJ2gKe5l7wALNAXp0P9Wt+toUv5uETkANsV0VSiVKCRj1MAJGcqUpQ7E5P1EYMtl2vCRGYQySGwFQSknkjzfZVAgk2KrxdaiEQEjqjTIg7WZnIIUdouj+YgsQVUAH5iB9dY6ur2+GyO+0hHPkfIRWyP1I9FwqHt9OSPOMc64f4Zgr+aAkWbKzy8fQFSSxBq7B48URWvpQVau4NqAjBSDfv6g7SvPs3BHhgeNZCOse7xjM2GscnJgMlKvPAUllsk8HGMc8Zxzrs/wrAAsIwsUO2V2N+w5Ffc2B4IH00dklnyAbABAoEcEk3zz9wPa70pRutO5woIcYr5CzkgLiloKAGcAplNBRxyQk5x7a4f4ViNYUzKfqHUi/uGQUb8cm+dfCrqCSyEXXHNEeQ1HjkgWR7E6WG+t1w1j5jbkR9Oefl5D0c4/TuMsEn7D7Hj211tsif0zyKffujVl9/dSp/597187gfBB8XyePr7Vx9yCfYaWofXmgKgm3priqyAS6lLM5hPOMkoUy9jPslpZx5xrofY8gDujngl5PHzRseLFWCv25YeR+uiyP6Sf/5IP+9f2/v7bQod47Z3MkGkt4k1zt7lRgstS0ADuJVFeDb+Ej8ykoUkf3abZ8TJxiRPC8Y4pjRQ2L4dSV/a719BB/b7Ef76c2k+vujRo0aNGseWt9uLJcitJekoYeXHZWrsS6+ltSmW1KyO1LjgSgnIwFZzxr6KJFkgWLIqwL5q+LrRqASdyPXtlYTN0WDpuY760y4M8Ft+tcbV2ORG69QSpv0Xj6LLKGikJSD9ZWVGYI2NjwAQskcSxliRR7lHPeStvIWPvyWJAHJGub4uQzqqRs5c9sbobSQVwQx+RQV5IYjtBs8a0x1VvptoqTtuscVX1foN/iMp8KRIfefQpbTIba/9thtASsoPYtbhAWkBASKG+LO+Z27QZXTG2ZK4GCsEQ3LIcSjInfIUyRwKqfMsCqQzgspaTtViAvbq+PhT0/h7RJB1LueN+O3BppF23HiKNj4qQnseYs4+ad5CyoyBgiA9nkkxKR07uKyzenVT9RbMrQoDDbkWzYKiMglX8uUk/wBS1OpeIKQSQkHWUdk6Hzdg3WXJwJdr3BJFepvQkxtygLVau9t+KjI8ylhMfDBgqkaj3PrLbt426LEzYtz210KHt9SPIwJggsH6wlT4VUaPz45vb22jKbZ9Ce06UJKUrZWBlJCT3EnGHCSQlKT5H1Ak60RsBM2KRkMssYVRKvcr0VBuzwe7kBEav6WsknVI9QtGkyvjkIzElHHHeG5pQTarwxJFcErQFDW/tubk/wDCcgT5Xe3BSksylrBIjBHcW33VnJVGx2hxWVemBkqHOrd6c6qjGNNjZuWjxYCt25TSgqmOi9xSeR2/NAAwLtx21RPF0z1F0szZcOVgYbJJntUmJHGQDkM/arwRot1kdwbsH5XBoAFjpo7g327KBj1cl2OhDxSlxLSFy32U/ldCvqTFQ8opU2VYX6eFKWO7Ag3UXxQyMy4NlyJdvxPWKjJEatn5kKg/zYQQxxceU8xSOne8QD9wLCpt098NsXCAn3qCPPyjCrnHaVhh4szgExP2m8mSJQfWCt2LISiKwFFBrb7cEJwSUWUp1Ks5YkuqeQtGeSsuKKccEZQkY57F+5atq6237Ff1f8QmmXktHlynI9Vf8xMlgceewKAT9r08br0l09mx+k23Y0LgjtmxYhjvGwFKEWMrxZ4D2T4I5NPyH1GCUIKorbUxtwLCpDpENfacfRhKlIJOe5Jz9JwCDjVgY/xLjlxgfwcSZgNky5HpYkniyshVj3g/0MQK47u6l1X+T8MmjyCPxc0mHIpLJFCJMtTf9QDBSAOe6rB8gi9d6upto46U/hdc2kHt7gt4gc8YIWnHcPGRnkEADjSQfE/clmCS7RjxL3he5mlcAk8kNYDX7UPfgVR1z/8AjDbPR9RN0y5GILLSRA0PI7QrEdvNgm78nkWqje7gXFTLhIW1ISoPoYyHWsqCQpsLWUrCRlSkKGSPyqz2gyiPrmGOTBGTjr2ZCXOIeZYGLlV7QWKv8oLFfJUcEEi2BuhWMWUcTKYSQNUJnA9OakLFGpQyXwqsOARyOa06mG1uy4bm30zF2ncH4MetSoWCn0g+ktptpSVIcStQJdJS12FSlEpHE6E0Lwd7OphZCW9QEAoSK7lb+lrBAuzQ1A5IZUkZXpWVirMDadwJBAcWGPB7h7GwdT8pPxL8Hq/xgIFt+Hw/xINqCkCd8u38yEqT9KsPd4JT9BOSj6cHUKk7PUf0xUfe3YD5C2a+vt9z+uj97+/i9KeuGjRo0aNGjUX/AIltqQ39uxt3s1cF+ZUSW49g+WvSmOQpy248d35lrtfcMWWGkJQXMhuQr0+U9qunK3STa8OedIEyAOw9rEgxkt2h17R3EFmHeAQSBY5B1I+mYRm7lHgPlTY6zq5jCdrIzxqZCrJIGTlFchqruAVrDWICTG485xf0yWnyEZAlCQyVpTghfzjTkjtSPytreISCUhaEgJNfZWfsG+ySLumxsuWwX1MjGyyjSsCVKt6o7uAAI1lamFgst6unEw932ZEOBuoOMneUhnxhSA+CvpMULPZ7niS1I7qYayK+thQ3g+3JkNrbJUVuwGypYyTyGpLgW1jHHpFaQRjyAPmLsPTGJN6sB3PFmicMsk0CZAZPPYWjkIljIJUHtLJ5HHjhmbxv2ZGYZosHJhkFFIcl4iH5Nj1IlKPxZPdTMBxdnXTOYqZUn5lFqzXkgeq2qK/6BdQv6XE9yG1NOEfWS2lTZOT9K8gtG59ObJk5z7jgdSxbSZFUTwehOIJJF8TBO1PRcEGwrOpZQwC6XYG67zBhjCyun5dyVS3ozLLA00aMB3Ru/ewlXxRIUqK88HXFUSschvs/8mrWkPJbJIjy3UKSlXcQcqQkpJweAPGM4I18l6c27J2/Kxn6y2iEToiCY48naVV+8iRXnRWpkUlwAfbxRPKPed0xs3HnTpPdJGiLER+tEGV2WlZGWJmVlVmohiAQL5J0nMVtMwserueA6CA4hr5d1vI9lAFzKhxyAnnH1eRloxugtsx3V5utdnmTt9REWNlVrIpj/wB03elgEAH8wAaxYLnkdWbtkIRB0hu0bd3a8hkV+2iSykjHPYfzcsOOWH10plNeohDd80lLmUYYjvFTpI+tBABGO0AEZwRkEAc6cz05swKj/rTBAkZo2WLHkb1SALS0L2CDTAHgVfN6QLvG7Wzf9JZRMYWQNNkRoE5NPTKrKQQCCbJokDiyt1ceojuF0yYrzzccuB2Uk/R4w8WSBkN5BS0B2oJT3Ak6lezbJ0ttUhzcrdYtxyFh7ozLGe2Nj+VzCe1Kj/8AHEwCjyyE6jm67t1JucYxYNtmwYGl7WWB6aQDl09cBie48O4a35XuF1rGTR0SpDb724Jcl9Ci8VRHVp9b1AjKH1d62n2voT2tOMr9NWcDJVpH/hnSAyfxE+buu4ziRpmKZLxRSF+0FJFikVZY1CKUV0YRkEoAGNrBuHVTY7QQYO24EJjSH+bAskkYjuniDDuje2PdIrqXHBs0dPSFP29F7S426+4AAPmXiVKA8FLcdtsgADP5CRnAVnJEoxt92TEKGDFxcWTgI0paecqB2/KETv8AaiSavjkeIvkbFvWQSk+XPOhvvWBVhhssWId5JGBJJ5APIArUzugESHNprLcjMRhkPzV1UPsaShaWISELkuYwVJ9Z98IOVlRSyO/BPYH9d2G6wK6BvRV3AZgFMjAKCSgvtCmwoYlh70eBXG97e22Zv4V37nESyMO5nCFyxChj+ZqHzFQq+AoNXqQuuOmjRo0aNGjRo0a1r1hrV23TDe8JtHqOf8fmym04z/NrwmwbI+3aqMFZHjGdNu8RettefHVlsWYgfUohcfuO2wPrp76ayBi7/tE7GlXPgViTQ7Zm9FgT9CshB4PBPGqnlTFgpUpSXBgdvqAOcEAgd5+vB/p+rA1SjZjJ2+owkC3XqKGI967/AM/2AD8eNae/AowbsDRFuD2MUuuL7fykVxXabHsdcFWLBIyntJPJbWRjJzkpX3oOeCc+eCc4xrid4RRfc0RPFxzSIOATQjcSISw8kcnybo6BtTAfKwkF388QNkUB8ylHAB+558edYj8mLjuSRkf3tsLyRyCkJLZz3HwPtznAyin3lQLSckjn+dFjzCz9qRuPIIIP76Uw7fN3drJS1wYpMiIgAeDbOK+vH6HgEJjlh39yHZZIICcLZbcwOQQklRKRz/T4zjOM6Z336U9wkyIWVuCGw4yaFV2MzntrngV5JI507LtKjtaPGewSQRkSJ3E2CX+Wz9b4/Sydce+MpCUqWlxGRgqbUe0Y8J/mAISM5KUAZPkEee5N6ASOMNjsoFKXgJIU3wtzACiLoEBqFg1ricGQSOe2dCeWVZkAZuSSzekQSQe0E80SBQ858VURhtSxJk8p7QhshtHjCgML7uSfvwcYA0th3PGSMytkyh/dY444oxwR8q9xo1fzXZPitIcjGzJXWMQx1fLyFpHNkVfyrdADiv8AbWM5LjqVwVHzjuIyAf1yVH91H9gM4DZPvqsQFmnCi6XuQGr8EgEt9rJIP91sW2SqGJSMFvPDEWPdQaC371Qv2+ijEmJUT9RJIyoqXknjAKskeBx7D9ANLMTeVdiWkZgeSZHdm+g8lbI5u7FeK0jyNtYfL2dou/lVQCxonx9SPr5sUfdbZkDvQlA7e49v7/cZ8+/OT4GOcAacRn90saqwUM1MFAUkiiOVAJvgUTX7E6b3wu2GQlTajuHfYo+xBJ4s8UB/tqzboFAMLpft9ZT2meqxsT5BKZNg+lpRBJP1MstqzwCFDA1d+wqy7ViEgDvjMhr6u7EcV47aPk3fnWbOsJvW6i3CjYhaKAfQGKFAw/ZywPkWDzzrc2njUZ0aNGjRo0aNGuiSw1KjvRn0JdZkNLYebWApDjTyS04hSTwpKkLUlQPkEjXFlDqVYWrAhh7Mp4ZT9iCRr6rMjK6Eh0YMjA0VZTasPurAHijxwb1R9uZbVZeXNYg+ka61soAacGe0Q5siOkFROTlDaclXODg886y7v+XBhZ+ZjpK0ZiyZowjmq9ORh8vFFQAK8A3wDdDbGxY0mbtuDmOgl9fExZ/UWjZmhRia55LE2PrpmyLJYP0r+ocAjJ/UH3HgeTzyffGYNmb2ImPbItnwe7u975F1z7V4/TUtx9sV0rtsULAUAigar73zXPIN/TWOuzKk9xUo9v8A2QeR/v3Ptx7HKGXfj2d9ighur8i/y8GzzVfY/uqj2iiAq+aontrmzRPua8ffxzxpONmorIOQOcexA88j/OfAJH/Uak3uRpGFsBdj5j/YXR458nzY4qnqPagsakG7HgKB/wCx7/p7/XWfHnJWO1RJI/KRnyDwcA4yMnnzxgnTxt+6CVQGZu9VAViTQ96C/Xjzx9eaFteXt/pMSAvbYBFCyD+xP0uvvdayUzVFC0KzkKIBwfuBnHsMjP3A586VNucgEiMXBPCknixzfgVxxdk/QaTDCTuR1QUw5AANe33q/wBvb666UTFd4BIIBPBA7h4xn7488Hn9dM53OUSlXlb5TYAP5vqOT9Bxft5vTh+CUICqrZHNgHwD5rj9fNfXS7ElEfVnOR74GRnnJ5x+mCf9akO35rkrTV3AU12Rzft+9gD/AG0z5WIvPygEcEAUWuxYFUK9/HF17HTrgPeosYVkgLI8/m8Jx+qT+2cHxjU82mRJMiNnkLcj3PJN2BfjgD6ckUTzqL7jB6cLhVPI5ugaPPIvkcfobonnVymzYSK7aW2YLbaWkxKCoY7EJ7UhSK+P6nHsS4VqP6kk8k61DiII8XGRRQWCFQB4FRqP7+STyT51i/cpWn3DPmZixlzMl+4+4aZyD+lVX2rTl0o0i0aNGjRo0aNGg/r7c/60aNUTfEB30vVzqJCA7W0bsuHmwMpKWZcgzWv0UOySPPsdYo+K2RLgdTbvHRCDKkdWF2Fl7ZQeK5Jf2PHP7egHwogTcejen5jXedtx434BBMBfH9waNR3Qsk2fsNAPXTjZ7vUUCrwQSM8AEDn2BOPsffwdURmbzNEz1Iy919tGlof2vg15J9tXFDtUTqq+mpquSosij9Vs+a82asWDWuCNwOgY9Y+2CR3ckj7jknnIz+uNJY9/mYECUqKABBuhfIYe4IuhfPN67ZNkhNEQAm+QwK2B9CPpx7jWSi5K+4qcAHHBGCRjGU45yTjI8Y4GlUe6RTFi8vYVKhVIAD8dtqQOD9QTVDgnSdtt7eAnNnuILEg+aPJs+R9+eONZjVwtPIcBPCkpCMKGDjJJznOM+2Bj38rot1OPyJzKTVAII2UD/Nye4ckCvHkjyNJpNsSYj+WAKNksSGB+l+D4PIPv99KbNu49+V0AkYUlXaFKPPCO7uBOOCMhQIwPOnZN5fLWxOikCir+mCTVcE/msAH68jgjw2PtK45FxsVLfmWyoB9zXIF+5oE8njXaic6HMLyEjJUe0g8lRPjGR4Pk5OAR7lE05ST5nN9wBJBscXfB4H7c2Nd/4RGQkVQBBBrmv7/aq05oMsFA7l4B58+4PGRkkZ9znxg8cjUjwMvtVQZDdk+SL9wL80T7n7edMeXhjuJCj2JoXVeRfjn/AFPjnT/2yr5qbFjJyVyJEeMAPdT7zTKcZBycqTzyCSONWf0lkficrGUEuTLEo5+pA5oeRdXySOdQfqaL0MLJlb5Vjgne64BRC92PNgH245+g1eFFa9GOwyBgNNNNAYxgNtpQOPb8vjWw1FKoqqUCv0FawUzF2Zz5clj+rGz/AL679ctfNGjRo0aNGjRoIyCPuMaNGqTfjFqhE647tCU9osGaSzGMZV81TRGlqGPcrjknOR3eTkHWQPjdgIepsgrY/EYuLKRZNsYuwmjwKKX7V4PnW6/gNnNJ0Ltykd34bLzsUge3ZlPIo7h9VlBH2IA8AahtNjODgDgDlWCAOcgd2fJHP7edZe3XbpO9rDMpsMR4ABviuL8eOQTXkjWkcPLjIWzTAgKL8mjyfp9/vfPjWnepPUSo6aUMm+uHg4psx24dPHlxGbW2fkS2IiWK6PJcQXlNl4yH1hKm2I7L7rikISVaaNk6a3jqHecbatsDo88hV8mSOZsPFVUeQTZckaMI4wFqyLthQNEa5dQdSbT01tGRum4ukiwopTDilgGZls0iRiHFjkdRLIA/e39KopZmHnUL9y/xAKaIgDa22xLUR3h+4nS3gc8oDMKshR2VpcBHY47csAOYbWyQoqFx7T8FckEHe+qMdVVx2xbRhzZMj/Spsv0IlBHj+W5Fjg86pDfPjxiIlbJ0zLLI636m65iwxgi/EOGru1Hz/OQcBfJ4yNrfEz8Tu+Ftq2p0plSIjyA61Ie2oijilo5IWmZuPcCmJKACP5jDyskjIT3anmN8G+mCtyTdR5IN07ZGJjgmuGULjlaNEVZ4F0avUIPxi67ypKxtq2fHVha3hylKq6D5GSC3nkiqoDj3W7T4r+tHT3cESi6idPYESdIgt2bcNMBMlTtYVONuz25m2tzzgtplTLzbvpQHSy40oSENpBJMr4J9MMe2Hcd+2+dl70LjFzV7QObASKwSPmYEOo5rxfAfG7rLBlWLcNk2XLXt72SNJ8eQqeO5WhyJkJHK12sLHNGtb62D8bGz93W1VSTalqibkKZFjZvW0h6HVRnQpAnyRKoILwiokmPHkLDpRFEtl9535dtx1LXnfCjPxMDKy8LdIN6GJEJEwsXEyFz8hfURG7EJZS0SP3sFZmIU9gOpBs/xi2fctww8PO2zI2k5kwSTcMjNhbAx7idlZiIkkCM4WPucKqkhnbt7jqadZbR5bMeVFktSI0ptqREksrQ61IjPIS6y+w6kqS6y62tC23EKUhbZS4hRSQTWSO0UzxsGRo5TEUb5XUoxQq6nkSBgVdasEcj21cLwRywrLCVeKSNZVdCGSRWAZZEKmmV0IYEWGBB99b76SsqtN7bRhfm+c3LRR8EHkKtIqiD9wO3jzwT441dPw1Q5O87etfK+XjKeeP8A7g7hVeQFa79r4rVUfEZxi9Ob1ITxHtmcwI4p/QkVfcGwTfHn9OdXggY/2T/sk/8A3raGsAa+6NGjRo0aNGjRo0aNGqfPj4iqquq9PYhISmz2bWu9wHCnIVhZw1ZJ8lDaGOQc4IGMDWXvjtD+H3Xb8uuJdtCj2JaKaVQCfBoEfYX7k8bO/hvlOX0xuuESScXepCB/lSfGx3BFcklg1/ofsTX7Z7gDjQQlCUHGVLBSScBRySfHH3yPt7ayru+6eqqxJEIx/UfLMRwSa5rnx5NAD31qjA2kRlpWYsCAFU8AAe39vH3smxzR78cXWh643/a7ZjpXFa2yHNrtutOKZfdisPsWF1KkuJIeUm0tVtQI0UFMdFbUOrkB16wSG9AfDHp1dr6Xj3AyvLk9SkZ0hFqkWLiO+PjQqOAxYB5JGJJJIWgF1ln4w9SSbh1VPthiGPj9OhtujAoyyzSLFPlTSEAXGzmOJIwABHGWYksaj50I33DpOoNdLfkbeiuWFPeVMWfuBuU7Hr586rRGr5FfKjKal1F0HWnW6q1bdWiBYymQsMpd9duxsGH/ALpfUZVDBktlJUMymiKK9hQ9qqx8E8Cq1WGJlCKdZAqC1dUeT5gCwCgqa7ldvmEbAHtY0fzFtbS607bmbW3FX2tXYxN57btYVdcVe/Ytzd7nhzJjjS12FVZPX1nYOw7arngR5VPbRYktakMKcjek66hvvy8ZoZAqqZEoMsoM0gDWAVZi7AKKo2LIr61o3CIxyLKkn4iGQCRMhJDKhJ47X9Qv2yK3ylXFEdtivEqbz4kd7bY6b9Kotr8get0ifuLcbtRS7cq6CbtvpdZVIrKOj3nT7fgMJRCuiUXL9HPRAVJrItc5aKjsLHzDsnqJFCTZy5B3GONAFWPtpfVADABuW7aW6AYgWQZW5ZMePiK4VslXkm+WNEePHZAEjkSNR2hxTlGCWosgWCYAwd1TY1vBmxXUpegy0OtltxTYdLK/rQXYziQI8hILTiWFJT8u4pLf0EEmDH+Gk9ReJEcV8xIDhlJorQI5NnweePI1F8mUz17A0AtdoIPBsDwf72edX1fC51Blb56W08yUhSVVDqaKG6sALkVcWurZVUp5SUpbXLhwZrNbMcbSBIchiWQl2Q4hOZPiTsWPsHWORDiG8bc4IN5WMkM2NJnvJJNFdBgBMryR3yEcA8a2f8Kt6yeoui8TIy0/n7bPNsxmoqMiLAjhWGahdv6MiRSMD8zx3Vsas6+Ghg2HVjYDBT3dl83LPBJxAjSZxJHsEqYyD+3OBqzPhLAW33bEa7WR5ya4JSKRvc2BY/bj21B/jNJ+H6P36QkAyY34cc//AJsiGHjg8kP9PFj2vV1A5AP3A1rfWD9fdGjRo0aNGjRo0aNGjVU38SOvU1N6b3ASQH6zcNb34JBVFlwJaEqOMcJkrKR/8j7c6zr/ABAYZfb9pylUWv4qGzQH/jlok+a+Y1fJ8151rf8AhbygcjqXBJv+ZtuSF9wGGTEzD2F9ijwCfrwKpz3La2MOrtptZXKt7KHXzJUGnblohKs5UZhbzUBEp1DrMd2YpHoNOOtqbDq2wsBJ7k4jkjTJ3GGHIyRgwTZEUM+SIjP6ELEK05iVlaQRqS7KrKSORzxrdMolxNvysjFxTn5MONNNBimUQHKmjjZ1x1nZGSJ5SAiuykAkWCNUcdUINn1z3ZZ9SW9mb9pqrcaZ9vEjwmNiWBZhRayYiZ85Ic3PXvB9kbD3QtJlwY8qTIqbOKy27Njlp3dHS/Sy9O9LbNspyZNwTAhmZc5VRVyFyp3yFaOJpnaONEYLGgdgRb/KSVHnn1hvkvWHVW7dQf4dkbcu4yoy4PdBI+P+FxVx3SWYen3SXiTM5ZASwdQSVUaYQ6cVW2I3r2tfvZUKZP23Tut2tV0xlxPnd10P/Kdttdz27i9BXZ7fJso06O6wlthxTbzyJGGkO8eJGkneyP2sYwO78OwJcFlJBcsLANEEGqJq9R54RDGe9ck/NGhDJjMA8sfrKvd6nctxnuDLQ8A8nT2qd57M6TESnqTe9JOs66mtHa56TTxbdMK4hKm0lzIrIvUtu4jNTa5TcmO+ZLb6YT8V55EdqWwHO7sSAM6K632nl1ZyDyrBBKWQ/TkECiauhyXIx8NR3JkRtIikq3YD2stq/asoIUowIYNYWrA7hp0bolR57+4du2kbfO3qypi7bv8AdUemT0u21txKd5qhObam7qv0WlrYXljcrs4bsRF/bXMtJedeUzHTHlusKY8VpT2n1I1UKz9hjRPmrt9R7LSMb/Ke4CyTzroypogZYmEqBEieREXHRf5wV4mkdSzOXDA07OTzYBQkch0cWwiK2nZvUV2Q9uiw2Q1Dc3nsFmW3u+ulRoh2/OjQtuWa66ZOTJTPqXZr0eDa1Eedawpi4UGS4hyg2wKwLQzE9zKQZYrBDKpFdrAD5gRyQwvnTbOoHaBHJ3CQwgF469ZVHyntUkMwtlLFVYdxFgasy+Cbdd1KRabHYqIA2vtthN4/eu20u0nSbC9LMKvrIPp01FXfLBNPMnOS2oTsaSz2uwHXmZLbwp/4t9N7Lj7lgb5LJlSbxuSQYMWL3RNhri7bF2SZLH0lkMzd0cYAYJ3GzY41oP4H77vWTt+5dPxRYq7NtbZGdJmn1jlnN3N19LGi+ZYBABFLK/yEgUAx7uL6fg6qhK6r109xsFMGrtH2MjAQs1ymSvH3Hqdo4H51fcalXwn2sDc83cmjHamJHHjH2DSKokYccEKO3jwWIPniN/HfcynTEW3I57ps6M5I8lhFM0ir5/KWAehYsL4qtW3avzWRNGjRo0aNGjRo0aNGjRqBXx/UMa16a7cnPsB1VbuCW005yFMmdWKUopUMYC/kkhQPCsDIOANQL4kbRi7v0vlxZMKyegySxMQe6JyGQspHIsNyOQaFg8VdvwG3bJ2zrPtx5jGMvF9OVfKyLHKjKGW6JVmBHFizRFm6FbQtw5ryErUQw+AFeFH01AkYxgkEEe/6gEYPml1LGmHuOXCrdwhkaNXP5vlFUewc/wCUkVdWea16j7M7ZOLjyuiguFcr5ANWtjyASARf14v3r9tfhi3tXSkbioepsJCdqXHUPde19osbPlmDOkbxl3lm9UW7ru8YkOwXH/GbKHSy/wANjLgOWEjKltPuJ1oDYP4hNtgwdi2zL2PcFXEhw8DIzhl4rgKiRY82Y0BjUsopphEXDILHcSLOZ99/hz3uXM3jecDqTAYvk7tumHtg23KQF8uSfKTCaUZBQle9oY39Mr3vdUxbUC92bntq+N+C7orN6/LGLseOwmTtPbrLyVdP6yTR7SvXm5+7PxWPYQaee7XWciyQYExgITaRH1xEOo0PiZ+FuQMm3ZePuOOpiCz4ORhZaKY2JjZzFkO6EF6JcDigw41mTc8bP24GDd8HcNvlYRVFm4MmM7eihhSRPWEZZu0kEqWVrog9umlu/wDDr+MHt0M7ztJUCqpqh/cjEXphItZVRtaOKeqYesoW7nkyzGgssV65kaGmytIcGGmbKmMxW3C4nGcFu5e9gFDShsUsVjJ44cjjwT22w4PAUaaJpceZUMpnJpUMgjj7ika9iclvmIFD3tQByFF7Pst0SZ5u5k9q1sVX8XbkbcNXCY6YPfjSNpyamu2sqVWQ5Fu64/txynhqiuNIaMaEu0kykuwbSeZD3DETH3kAn5QYx6ZZ/AQ0LPyj3sLybbjSLJmWR5DUzGQRrISMdVcR9ixl07m5QqoTyaZibDEalX0G2Lvzfu4VzpFh1I2hWXUqLuG63V87teYq0taCfY3VVMkpTtFFZNuHLO8mtxXxMfCq2XOhO90BlEMQrq/4kbL0lhNJDPh7nvAnggG1R7hAZwGZpJJ8r0FlaKOIGqADszqpCqWOrF6G+GG/9ZbgqTQbps2zSxS5eRvEuExieWKjBFAJliSead3PYwYokYYjuoA2Y9GemcDpq5bCJuK73Cq5a25EC7iPTxE1dftetcqKetq49LCgxY1dFhOBpmOWf5ZR3ghTrxVRfUXXuR1vn7Zk5G3QYJwIZYIkgmlm9RZpFayZQAvb2lR2AAgkG6GtKdKfDrF6AwtzgxdzydyO5SQSSSZUEMPpfhYnhSOP0eSnaxIDeKAFAk6ue+B6GJO6raYcH5LbUjtPntXImwmB/ns9TI//AE60d8MI626Zx+Wo14quSxHjjwPrxWstfHqUqcKC+XzGZhVcJE/NeeSwr6c8as51aWs3aNGjRo0aNGjRo0aNGjUTvjQrxN6IWroSCqvuKiXn3ShapERfPOMiQlORz7HjTH1LF62xblGRY9Du+47GU8e32P2J5GrE+FWQcfrbayCQJRLEeeDa9/iwLBQc/etebfcqHYtjLbWonL7p7jnCm1L70uY98ggKIzhQIzgHHlt1rtuRh7vmxS9wByZWDgGmjdyQ4+t9wBYAgEN5IGvXHprMjyduxWQKSYI1IBAplXtKGhwRRq/Fr5uygx3H30rBAABGFHgHAyUnHKjjH7cc58xPb8XJyVkBVEVHCpIQVB+UHkC+9hfNUD9uRqR5EkUXaVYtY5Q8kHkCvy9q8XRJN3x7DSvUW/2vPYt9v7w2I5u9DM52JV1TkYyHpBbXBbjWCpchphVQ1PcnKk10umkSXo1dEmzbJ+AmO+GrO6X6dyMLIwt02bfpNoyFRZp82LJ/DmPu9QvCkUUlziAxqk8WUqLJLIscSyDlqu6r3rb87G3DaN+6aXe4GleDGwZcY5PrdhhEUxmmjAxhPJL3wS4jSmOGOTImaMpS6Brej3w3biuaysXsveNFc2c4V64CEKk10CwMZmW8DaTq2a480367bZkLfcdkLUqRHQ7FQuQm2p+u/iVt+Nk5A3Tp3cMTGi/EDKmxMNMmeEymFGMcfpn1LUsVa+1flkYS0hp2D4a/CXdczExW2TqXbM7JmWBsSHIynxMeYxLI49WZZQ0SBgqspuQklUMYaQOnYezukdPVI3VTdMZthIrb+RW2cC7cnXEyC3DppV/GfgV0etjU1vMLEVlpLMiKYsGbMTFXMTIafaSm3zqrrrc5m2jO6rhxMXKwY8iBttixdugyu/JTFeHKnjl/EQQCR3IJlMk0MYYRemy6cun+jvh/teMu9bd0ZNmZGFuMmLlJucubuWVitDiS5sc2LjvCMbJyGRIwwEQSCaQL6peNl1M/ZG63dytSXF0FzQsxBEQwi4jmOuQmQwpzDDfppaCWOxI/8d2UwWnoy0voWtcdmts3bBtpiH43EzWl9UscV/UVCjhbcli9yBrUuqOCriiAHa3dt3RtzjlY7bm7fHjiIIuanpuyyKx7UA+X+WVpgjOva8bBgWaNd30i8PN58EpUfuD5wB9sZ8ePvp52UEzxE8cqOTVGxZHPNckUefvzpr3btMMlH2Ye3ivf72TY1cD8BkQlneM4ZIRCp4oJ8gvSJchacnnGGk8Z5AGcnxtz4ZxBNjZqILyju+nAJ4A4oBh4+v66wD8fZ+7eMCD3X8Q58V8oiQV/fxYFkceNWL6sbWfdGjRo0aNGjRo0aNGjRrQvxOQPxDoX1DbSkqXHqGZye3JUEwbCHJcUAP7WUOFR8BJJJ40h3Re/bc9P8+JOv6fyyQf2I/11Kuh5vQ6t2GS+3/6hEl8ceoGjHnjywr71rzObwSh6Q80rAWh49rh5wnuwoAjJ7SkHI4Ge08EZ159de7emZkTwt2iSOZ2jeiKHdTqSOe1gTxyLAJHF69XOkchoseBxZVoU7lvgnsBQi+CVYWCfIJ49tM31Go6Q20T2gAK/uPnJ8jGT7c9ownnVdviLhokEK/IBRauSzElmb7kj70DV6myPJP3tMCGZgQoJ4HFC/JHHP1N86xXJ3YAErXgHJQlagnnn8oIHnH2z59sabpAVN3d/QAMATQUc8+3J9gQAeKVIC1gmgB4N1R8miR5/Ye+uhUlfIBUFck5UTjGUg+/9OUnHJB7eEnGuDl1XwQfDCj4Js8f3vkA+/vr6qqSObH9Njke37Gr9/HHPjWVFfX3AhaiT9X51Acqz9/HdlWD7gryVHOu6BH4piB5IJNHyKog/WiP218koX28WfryfqbFefc/p44064T4PnKiMZ7skkHI9x5zjBPB5OedO8DK3dx4Haa9jRB7T9/8AgGmjLQ8AE0PmAs3ZJ8n+o8H/AIdbDpHsutck4wAM4IHH6Zxnjx+5GRqX7K4MqADuYUOOBYagDd+xFj3rzxqJ7slRPf8AUGPix458/f2siydXdfAdCU3sPdM8pPbLuq6KlfJCvkq5bqgkn+0zUg4P2zrcvw8jKdOwEgDucgc8/Kqg+5q/a/IrXnP8dZlfqyGIG/SxZGIs/wDlnNGj7EIOft9Dqd2p1qlNGjRo0aNGjRo0aNGjRrAtK2HcVs+psY7UuBZQ5MGbFeHc1Iiy2HGH2XE5GUONuKScEEZyCFAEcWVXUo4DKwKsDyCpFEEe4IPjXZDNLjyxTwuY5oZElikXhkkjYOjg0eVYAjg8jwdeUvqpXwqjdN9AivFpEO0nRRHlE/yxHlutdiH8KDicI7UlwIcxysqVlRw/8ScDExd7z0glMYE8tQT3x87UIph8rqRVCQRspsHuq9ervw5z8vP6f2zIyYvUebCxnaaD+stEpLSQtTRkElSELozXSqONaVkS0jOVjjkEKyTzjggkY5A4OMZ8jxS+T2EkFgOLBsECifdSQas+L/1rVuwqwANEGgDfBHHjkfc+3H0vwmqmNKc7O8Bf5u08fQD5JxgHux/nxzjDG8sLTGMuPUS2KkEAoDQbuqvJFAcnwfcacEjfs7yp7DxfB5+homrF19eRruRJCsEKzkn3zk8HOcftkn/PtrmGTvNG27aJuxXddWfe/vrj6ZFWaHgceft/v7/+lSO+kjhSQM8nPscDkjyM8jB5HHngdyMoUjjjkUR45NUPc/8ArXUy8cg3Rrz/AMOnJDkJyhAXzgDjBwAc4KjnBHAIzpWs0akKpv8A/UEHyLuyaAvzdEe96QTRlgSbNAckEfcAAeftXnx7a2TtZSXpLIdeKElSMpaw4sgKAABwEICsjuK1fSB+UnjU06Xhily8cTTqiNIvyQL6kj24BFn5EDWAWJYLye1uAYV1E7x40phjtljcK0p7VVmX3Cks3aQaAABNWa16NPhXq4lX0J2GIsZuOZ0KdZSCgALfel2kwh95eAXHVMNsILiuextCU4QlIHoH05jw4ux7bFBEIkGLG3aOSWYdxZiQCWJNkn38UKA8sviNlZGX1pv8mRK0rx5noKW4CJFGgEaL4RFYtSj3JJ+ZjqQmnvUJ0aNGjRo0aNGjRo0aNGvh8f8Af+uRo0f8/wCedeYD4ytus7X68dT6uPXv1MWPuaXNhQpJWe6BaBufGmRVrAUuFNXKddjAlSUoy0l1RaUEYw+MUEcPUm6UrQhWjk7ZBwyyxxkSR8X2O7lVsmqJs8gennwE3B9w6A6bklnhypDifhmkioFZMOWSFoJgLAnhREEhWiSQWUFgTCqRITnHcO7KhjxjBzkAZH2P66zxkGMkjuSwpB5ANkk+LvxVGv8AfWkMe+2iLtqBIuhV+B9SPJrjWJ6wKsg8ck8nJJ58+w/T3P8AjTW8SM3fYoXYsrzRvix4Nmvr7caWg0KofUcCgffjnzrtbUBylRUMjP1n3zjk+/GQMA+ca6PRRQXUMVvtos9Du7jxbfr44F+1jQXJIBq/I4FiqHHHH+nOliMtJIHkY4HceOc+MnIJ45zgYHHjX1Y1YUAeGArvYea+9ni+DwQa+2uuRvvzyeQCDX1v6cePGnNAKAoEgZJ8nB/XGRxnngeTx/hZCiIw/KDxd1+4JPkkA8cm74q9N8zk2SeApJHt9zxxR8e9fodbc2k047KjhPqAqdQhAQjudcWtQQy003glxbjpQlpASStZCUhSyAbJ6SRZM/FB7q9ZAO1bdrYdqpx5JpVoEEkAAnVd9TzCLCyD8lpEzsXbtRFUWzuxN9qgFm5oKCWIWzr1F9NqVrbuwNmUbUFdYms2xRxFwHVKU7EfRWxzKYeUs9ynkSlPB5SgCXO7gDA16IYMQhwsWIIYwmPCojYkslRrasTyWDX3E83d14HkhvOW2fvG65jzDIbJ3HMlM6jtWUPkSMroAAAjIVKUK7SKvzp7aV6bdGjRo0aNGjRo0aNGjRo0aNR169/C70n+ImtbY31USGLyDGXGp93UT7dbuWpaUoufLtzCy9HnwC6fVNbbRpsILK1stsurU5qH9W9DbB1niiDd8d1mRSsGfiOIc2AGyFWUqyyR93zGGZXiJs0CSdWD0D8TurfhxmSZHT2ahxZ3V8zaM6P8TteYyjt7pMfuR4Zu0BRlYskOQAApdlAXVQ/U7+Ex1XqnZMvplvnaO+K5Kipit3MiVs6/7TkoZMhpq4oZK08IL3r1iFY7vSycDMPUf8NvUMLSS9P7ttm7xG+zG3FX23MIPd8vrIuTiyMOLa4O7ngCiNkdLfxgdL5MccXVfT277LkgAPl7RJFu+CxBALGKZ8POiU2TQGUwHFudRHuvgL+LKgkKaldENzWCU8CRt2223exnO0nKm1116ZGD7epGbUfZOSDqqs34KfEfCYK/R+fOBYL7dm4eUhr2HpZqsQaAH8sAgm+eNXDt/wDET8IdwjWSPrrBxff09z27dMORe6hz6m3snDXyJGFCx501f/SF8ULLpDnQTqz9iGttTnkYJ8hxmQ62fOcgnIGPHBZm+E/xA9X5ui+qwn+VYJWAJAIIYZDLanwb4IphQ0+D43/CuRAV+IXSdnyxzBHdG+Q2MCLHkEVfHFUHTVfBb8VNsAzD6G9QIzi1IAdtGaykQgBwFZW5dXERASpIwSf6eQPbShvgt8Tc1PRxOld6x5JTEVmyJ8fFEaK4MgdsnMTsYoChBQ8MTyCDpDP/ABAfCPDt8jrvY5VQOGjxIs7NZjXylPwuDJ3AE91h+2+CdS32N/Dg+IG/fiKvoOyOm8ZtltuS/Z3ydw2a0EpUpxFXtxmUwqQPrwh+3jJUMhTyQBm2tr/h86wznxWyYdj6cSKBIp3fKO4ZMtFWZzBhoYjKPmIL5Y7jQYgap7ff4qfh9t6ZC7Y3UHVMzOzwrFija8RDyFVsjPZJ1iI7bMeHIQQav3sx6DfA/wBMOjMuFuOyfmb/AN7QVJeh3l9Hjx62okpA7ZFHt5guxIklHhqdOfsp7JAXHfjqzrQnRXwj6d6PePNZpt33dOVzsxUWLHevzYeGndFEwviWUzTA2VdbN5V+Inx36v6+hn21Vg6e2Ge1k2zbHkebLjsHsz9xlAyMhCQO6GMY+O9VJC+pp4xq1tUlr4okAkYJ9gTgZPAyQDgZ8nBwOcHGNB/10fr49/01CJPxTb/pnN1RNy9Dd5TpNbYXCaGVtqssE00usjWLddUuzZdog2bjkwTa61lvQacqj0v4vNZrn3KxiPZRY7/mQ/iFn2nKZo5JViaGNxE0ayCONmaQd57u5JHZIyFhErqrNH6b6LPwW6Y3BNkn2j4k9PY0OZibe25w7xm4n+IY+ZNhtl58eLBhuMPtxvw2Xhwpk7gomz2wMeTJjGbLJhbb6SfENtvqrGpUw6Tc9bYWzu44i0vUFw9Twpm0pArbtiZuEQW6mI6LlizrYMOTJRPkv1ctC4zTqC2HHbt5h3FYuyHIjeQzqbhkMSNjntlDz9ojU+oGRVLdzMhFBgQIJ1z8Ld16Il3E5O57LmYuDHtE6GPdcBNwysffYjl7dJi7Scls/IjOBJiZeTkRQHFhjy4WEro3fr//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAIDAQEAAwAAAAAAAAAAAAcIBgkKBQQBAgP/xAAzEAABBAEEAQMDAgQGAwAAAAACAQMEBQYABxESEwgUIRUiMQlBIzJRYRYXJCVxgUKR0f/EABwBAQACAwEBAQAAAAAAAAAAAAAFBgMEBwIIAf/EADkRAAIBAwMDAgQEBQIGAwAAAAECAwAEEQUSIQYTMSJBBxRRYTJxgZEVI0JS8KHRCBY0c8HhJDOx/9oADAMBAAIRAxEAPwDv40pTSlNKU0pTSlNKV5lzb19DWy7azkDGhQ2iddcVFIl4T7W220+511wuAbbH7jJUROE5VPEjiOOSVs7Yo5JXIGcJEjO7Y8nCqTgck8DzXpVLMFUEkngDz/6/M8D3qslLvzKyqHd5LEYkQMdBXKqmhgyzIlyHPdNMHavvKICDrXk/jCLqwIIqQGch0CcXlPRvxV0jq3pPUuvIrHVYdE07XrvRLeGO3WaXUe3c2tsmoFmWLZHC8jNcmOUW1qncSWWSSEk781j2Hjid1LlO5IxYBEG3OzPkE87CcmTAKjawqcoW4eNOhHF+xYEnZDUIJDbzU2K4+Z+BFOVDV1llFeTo6T3iBky4cUUQlTpsuo6fHaG/W9tprMTLB8xbyLPFvaYQYDQGVVVZGVZC5UQZJmMagmtQW8pBKrvADMSuSAFGTkkD9hkk8AZIznifOtsHP+f7Vhpr9pTSlNKU0pTSlNKU0pTSlNKU0pTTIHk4pVXfUJkmO22EXLVPffUrzHpbkYKenMp7cu3lN+wSqnlFUmo0lpZYkrrjwLANHUleAFeJuG1G8S40/WLSxuIZbz5W5sO3GyyvFdXdrJHCkqqSUG+RC7EFVUMHK4IGzaOBIGyuwnaWILAHOQBtDEksADgED+ogAmq4bdyolM7g+HQ5rLrlHT19dNNtUEJk5WkKzfVBQvIsqd7h1EUSVxDbMi7D31Vugel7PovpbovoCyuIJY9E0u0tb2WNECahegNc6teum0Bzf6g9xOxYEuJARmrEYw9lf3U8WSys0eQDtJ2pEM8HMYIJKk42sMkHI84d1mKvfncrZRytGO5BpsYz6kFAdagW1Zm1dMh3QuIqOIR0+Q14+4KGCiESwikTaPIqO6Fj8rpHVPxA6XhmjWLWOxrljYzyM9pbyazphtbqEW4JkhskvYop5UtkWMx3MzKu8sDGWwE5eNUTvQxxyjACs8e85Y4AR2BUK7E5/CGB27hdHY3JMts8EqXdwK9vHrtqOTUqvlXVfbPRjZkyI4ANnDcVmwiPx2WpkGV9r/tX22pbYSQdbbsPQFp1FZdJ6NZdUSfM69aWzQajdR4aK5linkjWaDDySC2aIRfLNOzTPAUaY9zIGjdCMuXjQxbmbMOS/aAJHMmFBJIyVGcE48cCcEVFRFRUVFRFRU/Covyip/ZU1cK1a/OlKaUppSmlKaUppSmlKaUppSoS3Yz88b+jV9c6DzkuxFmyKJIEpEHughCZkAy4rjCzHTcJvzCIOpHIUQuCTXiC8sTcSWzXFu1yhiRoBLC8sRmJ7bSwhjJGJApEbOqhxv25wcbNvb97uMThY0ZzgE8KMscjgBRyTnjIJwPOl/8AUU273SpMWo9wtncpyrbRzb+fKuEgYlY/SscyCukK+V7RZXUgw7FmxTkOrdwpUtk1atSfV9zwOuovxD/xQjqT4a6tp3WnTd5LpHT1zaHTpJLAOk1lemYSSmNYWKytktdRx3yS29y1zdQcPsZJXSfkba4s7u6txcwWUoluLYOyRS2r4EylImVg4Ul1KHcpAJGM1IlRhmaUuRbJWj+SzZlJZ4PTXmaZU9LjRYzN5WY7BlWc+vmeMxR+2yKS4z9ENRjw2gN5lRYRtpejWeqa5H1N0Ur3sp03Uun7PWr/AF+4uY7Kzktf4TbXC6ho8rKyz3F1qc7WF7pkzqtjJCZADFLHXQLS80O90HXp2SOKa2uAtjZBS73FvdXDiNbptybRaWwDtcIpLsUBYHJFtZ+40Qqadb3NTR3zcaukRCyTH20LJUisvg6ccWoTL9mKEbKOOs1pSBJ0UNlhHR4TrMutPq1rqF7cWOi6vZpDLZr1B0xeR3GpfLJIjvbXAhBuLOZXQGeG2nlRZcNEAGG2oRJp9o8FzZ3cqTxHMlnfW8bwg4YHZKokS5jyQypJGpYAh1Yjcfp2B3GpM7ZsL7Gs2LK6yRNcZhVRV8VkMe9mStvQzbagxrlXkdFEf+tkr5EvYRbEhRZTpa/0+SCV7TULudJHbZZyRpG9mqgL2mijiF4WB3b2vC7s5PIAFRr93UGlukmjkjLtG0mUSJZFBBVVYRqrAf04zkZA9NXPqsit5UhlpyE2+2hCD6RmjbdbFxRAXUE3VAW21Xs4ppx0RURRVEXVsMkeMhJlLMoA2M3DcAkELtHBy2SABk8YqNmtliAPcXPPG4Nkj2G0Zz48j3rPNeq1KaUppSmlKaUppSmlK/UzBsCccMW2wFSMzJBABFOSIiJUERREVVVVRET5VdACTgDJPAA8k/SlQdutvJS4ViUy1hz0F2Q8zVQrZI6vRIk6eRx40gAcHrNVtxCJoBBxgzb5JXBTodP+IvVtt8POlr/qTU4zst3tbeGI78tcXsywQmURJJIkaFu4+I3fYjejAzW1a2kt2+yMhTnGT58EnaGwpOAQMkAnA5NVQfoFj00mDf5QmZ5FcvDk9fKvoUXGymTH4rZQID0qoJj3ngcA2ge8oONK8nWO2gqhccutH6f0nStSttQ1iz1XrLrO50zrfRbTqW5n0JdS1G3s4ZNM0aPX7B7e7uo4LqMxRRLdLJbd2NfkzEXjkuHSs7WOpxrcXE0NqQ9hfXVvb29xJDZ3mUuJEtZ43hd1U7juUs+30urlWGMXO4W4FZjJNZJRFbDkEso0KkWGtudc08w227V2rrjasqLUtZCtTJn8FyKjLhuqvIp0yy6luNV6Vs3616ftzH1JGne0C9htr+PTAbaJNT03VJJY/l5EtL3vqLuYENb9uUyAupHrVtG0y11S6s9Muo5Y7EyJJeM4jW+QSsbe8toi2dktq0RkjTOyTcu0Z5o76doPqXqt4d6NvM6wjFco9Ia2VjIYibgE5Tt0CWzzb0zDsdauGHYWRVQPOyZERknIJUgg2cS0KJJZjBQejLS4EmvdI6hpMGtdBafd6ixOrRiz03SLN7oiz0zTru/jTddW8ZVgtu6xpHAk4uVEoDVa0iWS4u7fElvA5YWUuxpXlLDc8LRRks9rKVLHduEatkA4wJE3Y9GuIFU2uQ7H7x7ibMrRVuQZUDWM57KlxIboB9RCE9iOSndU1rAMlJSkySiPQxUWQfMHGhWidVfB/XuiL276t+HPWenfwbTrXUde1HRbyRbPVexarFPBZwvoskXz57bsFvtShMsSFI7j5hZEesM1rKkBcLeWuBsRk7j253FsYE4aMqSpIVGDEA9vb4FgPS+xu1bbSYReWOcYze2sxx8Mptq+JG/3b2Et1n3ZhBdNpmW8wjZvxi/iNOIiiTYkK67Z8Mtb17q/o/TOp5ZbXSJLu4ulvUFpC91Nb2k5hBlmdEeOSTblVaHuEKGXd3MVIaVPpjWapfWjXl4YyiSRzkW5nJbEjRxrgEgjcrOQfJPpNXBp4eVBkZXDlvHaoAiCcetKM6l+s1vkXlGQxKSKMKQKA7FadApbZl4zNAHsstY23XUPWN3qdxr+kT9BTaTA1r09dafPL1bFrKvKtyo1GC8j0t9LuEEMlvFLavexTO8LTbFDCcvpdBk0OOyj0q4XXorpxLqNrcKukPaEBkVbeaJ5/mlffFK0cqQFQsqjJKVKlVuAzDjxo+Rw5te6o/M0zZmx17EpoDrkYlMTZbIW3CUXFIxIu7nKkvSbexuLmCOWNo2ldFkltie3LC0nq7XPocxA9tmRihdTg+M0dwyMQy7eeMEEY+v2H3xipKiy406O1KhvtSYzw9mnmTFxsx545QhVU5RUVFReCFUUSRCRUTWdGjZkdSrqcMrDBB+hH5YP3BB8V+ea+jXmlNKU0pTSlNKVhW4FZa2uMTY1OKvSxOPIKELgtFYR2HUORCB01QBcdb+5pHFQDdbBsyETUh2rKaOC5jeUDt/hLHJ7ZbgPgAk4JwcZIByBkU/9f6f5zWuT1H5xdVGL4QDlcsrHIW4lIG5cXq7Ck0uLRW30YsLiOUd+U3TV1qUKXdOMMuEyxFF0VEfvHkvx10bqDU9E05NPEMmhfxhLrqAMpe2u9Oii320V1cxrI9np63OZry5jUtGYYdo+my901sbT5dHk3zJHKoB3RbwRv2jO9CSoIx7nd4BGX2Wc4xf4ojcCfR5y7HkvsrECPGfrXPbIHSPAeJD8EyMwrTsZ115iV4zAnjYbICHT0r/lXr/oiSPUdS6N+LVhbancwPFYxW7aTpl5Y9sfwzS7kL8zbXunRtCyT3EsV45kWWQwLtq6Dp/VNMv4LfVra+0G5mt4rmJ50butFMGZJ3i57lvKQyhowwUDK7yCBiFJAxyS9IzSNYZpTZO5EegP10m+tJ1BPisNNxwiy8XtpFlFjmyTYAFhTPw3iRpB8j7JOsnb9L6f0S4httWtIL7T7q1tbzTorS/nnvbWSykjhiuILizvJLuKSOXtRq08TtIxh3GV1Lq0dfadJa6r/Pl+dBjiDtDMGTYwfYyYUKrxodyAoGXcVcD0mqm744PW79SsYC+37z3Zeww96aMzFIj+P5NtZncF2U1KIsowq9bjPvyGfbiLFrjd5Uz4DH8KRWmTbZrzfrnojTeptOFqdUh0AxbpJdD1Sa6vej78xHezNptvcQNCSkZEogSaMIi5tImQlpaDTNTsZ/nNBaZ3aRJFuYYnW7jBUqIlZ93aEm7bkYLFgySkAJVo8F28xB1yLEqskw2XfTaoDYJ16P3yKrVhqEr0AiZlypNabccIs6vcbMonibjSGnEBHlk+hbjQotXu9Dl0npLTerGso53MTWdzF1JpM8UVrFqOk6obVbm+sZY7VYLrT7iFLizeBYLiAhEc6moatNLGunapJqqR252fJTP/AC4Cju5HyzSRoGDSMySKMOWdg+XIM3Y5t1b4gy8xj9djcCJJdR6QlTIGBHccVUVX3oceriNk8okSofBHwgipIKKg9baxvY42ht9L0eJWdXIQmGNnBC7niiswC3bLYblgwAP1ETbfwaBt0ct7CcNuEVvFGwO0/hYTqpGQASQDySv0MgS1yKqrnSYdhMTZTbjTEv2hWbEaWYqEZ+RFFyM7NitOm0bzAyY7rrYuADjfIknk2mowRTC1j0y2upI223C2zTKsuxgjSo4j7katt3ruAYBvc1+TSW1woVZ7tggYoJWBCg+CFVmBbgkjj2UNknGO4ymQODFLJ7pqyuwCSxZUtKwb0KY7JRsWukISfahOxXgN6OjTquC1IWPLkuhx4678L160i0t0621KwvtaS5u57ybS4rpNMjWWRnt7a0kuooh27SMHeIDIgLhO4d2Bj1+PSYbmI6O961o8SgC9a3a4dtg7kjxwM4iDSDIEhEgXggY3NZXbyjsqSpkjYh7Yps05TFf5EcWEyrbbaI6QfYkh9QV14AUkDkRIyNDXV51CeO4nDRkuFjVGkOB3CCSSAMcAsQDgZxnAGKghnAz9+OP/ABx4xWfa0a/aaUppSmlKaUppSqIb2ZhS1W783DLKvji/Mw6sy2I++SIMpt2XOqphMr9rgPR34AeVGXFQgNCIERCJJexuw0bWrSFJI13xgthJY2JDIwPDCNuduDgMMDzhFcQm5FtIMN2xIG8HaW2+lsZDA8EZwQ3A8moZk5RthYzAhVGQwauyR8gsKj6zHjzXDNB7FHjnKZdefcVEXucST2BAFTEURdaMthbjdHb2mipFJO095D8iLeaWSRVEszy2Jg/+S21SZZVkaQBNzYUbbJDdtkGW5vTNDEkduUvFljRVJZYzHcdw9oBiBGjLsYllBBzXv+OrsW/ph2c5qOLRMRX3XGW3nk6EgKLsBuI5yPHIl7g+DRF7KSKuteTRbKVe0qXFvEsAiRLW7lhVAc5EZ3NICpyw3OS3BzuOa2o9SuoX7zdm4kaQuxlt0kJI4DNhQhBPpwqKoHHIBFY9Ht8apwTHDq8fQax72/s51XTvuv8AkVEKYEyXEkSJpP8AfyOSfdPvGTijIIHORTSVdFtLZreW2SM2RZCtyYWkIIx3VlkUrNuHrMm4s2druDuAzXNzfu5uRdNi6Uv3o3kjUcfgaNWHbKkFe3tAULlCUK1VjfDbSqyLf/Y6XR47bSWah6VcLfYBNpGqummtyo6u1mXUIq1NgNPmkQwkwy6SxcF14OjR9uBdfdI/DjWPiL0jqN7LdJq+m+i0ttHuAls0wvYJ8alBan+RLG6xlhO0UUttP3GDgbjA31/NqJt7e6hjlkjmEi3057lxbxqrAwl9rTGCQMrYy3qUEAAc3jHPMsqiNqfGsUjuEouJOBrlEUVRBYc4JFVCT55NB/Kpygpru131G+nlmurW5jhZgpa6ngiQNjCrG4UA7iN2PBwze4NZnsYiqOLmzjIGPQZPJxy4YDx9QPAPB819U/cStWDVyLWotrmum2DUGRxcPq3UuvNmTEp+uaFgPZKTRA5I8/XzEywoGUgNRkfWmkMiXIurf+dOIo2m1KGUxTMdsKrC+yJY2cYUsQAxAJJIzguobftybru1PbQEhY5YlkIwDmRmDM4JxtwBgZUAAgZ9tZmFfNzCmxqAEE3JM6RK9nVDEGHVQq9l+SqyHIrSI5LdNrgmfI4oCqk8ouESakrHW5bmaS3acXhmDN3EKdm2RQf5SmNcO34l8soGPUGPFeW7t2lWCEKWJIYLjCYznJHDNx4z75zgGrp6lK3KaUppSmlKaUppSmlK1Jfqf4ygN7Z5rBfkwrYmMjxpybHccYUI8cYtpDAnmVQwVSl2IIvKIouOISKi/EBr8Re3jZSQVYj0kq3s2QwYEEbfbnn34xBazHgwTKdrjcm4ZzgeoDII45PGf0961QUeHY5upSsYe9l1gxui2EuTAiZlAr7zDb1pp10wqa73QyJcWc1BBp1JDTrT75i+osPC2nXR0/VfmLc2aTzxa0oZ7UzsFsb0K3/TK4y6TiMDazhSxyAGPFYLBu6ixR3U0V2FO0SEmCTBICgE7sgeMgZA8eK/TYveCy2YyLOtt9xpVfi0aoNiXXjFmSIlYkiM2Tcj2EeRIPok9vwuMsxm47JcI6Mbym72itM+IZ0q9v4Nbil7cQdCoRnMV5bkYjDImSJkcbQQAQq7Tn01MWesTxSSwX8isyEAOdoBXaeeccNgEY8qcgZr4MQ9Sm4G4ueZzm8/Ja2t2o2+J1Ykd6ljPZDavzmZH0ynqZ3i9/72SUN2d1iossm2mmGmnHXCVK9/EdR6mu7vVLvUpLHT4ZRFHaq0MG83jlLS0WXYJhIdqyyuHVgsYyMtx5t9WurmaYmUR2cbZCMPxSMNqqmD5xyM8AY85BWWGPVHgD+KYRu7j1mxYR9xYM+slhNjNjlYS6FXosiBfzIbsOc5HjSgCKkgjAmE9sTUl1kzQY3qyx0SxvtPuLqxsNTk1CGWHU5ri2hm1gGALGJbjULZre9mTYyLEzSLNGERUeQZrcn1KxgVJJE3mcFI2wC6FeQWU5JX2wScAjjINQ3kvqVv3rHFZuEZZudQyrvIJsHI8IyDKGsppG6z6e5Nh2VNdAcj2JC/Hcju18Z80bhO+N5xDbBw+Z3Njo9nqkA0/Ueob3T3mczadq+qahPbxxhFkiNrPcSd5rcHuxtFJukVSR3SMVXL7UicPZzSRuGJZVYmIqRuOARlWDcYHAwRjAxUrbYbi59m0LJsfkW9jLrbuYaSis5D5kbCLDUW2lf7uMsNnGB9hoVFxBVHmhHyESyOjFZBqum24EVlqDo0kHcbLpEcwJmQSPGikBkXeAMLgA5I0Uu7yRGVpXcP6n3HKndjkjOeCMgAkZ/pzzW3r0cYcUXIXLWc4+49W4265FRSVGCWylBAV1A6opIrceSLbhGXfu4SfhF13zpOykggjeXgpAoiVWyvbY7N5HB5KkqTndyR7GpXSoQsrPnlYzjjjDHGccY8H8xnxWxrV0qeppSmlKaUppSmlKaUrXz+oxUpM2ixmw6oSwM1bYVVHsgN2NFbASqq/wAvLsZlOfwqKqLz+NROsLm0PthvPnGVYePfNRWrjNuDjOGPH5qf9v8ADXPPlEd2FPbn1siRXWMJ5uVElQnHI8iPLjmLrD8Z1teQdbcHsBj1RFVeft5HXMbyUpICMhkYMjAAMrKfQy7RlSMZBBOCCfPFV1WZSCjbTuBDeCCD5yOQR4B/eq7ZgxdZBeWd3dWi2VjaSXXZk2xZbmPqQjHZbcf5Fg3EVhtw1aR1G/MofCLwiRMzxSu0lwS4mk7lzIcu7s7De5GfU4JJxweNoxxWZpA7sXkDuQT3T5YnGc/XGSD59/yOITXJrZFEgn3qGJf1GFGcddjKrjcYmvdPx2iSMU9GDJAe4E2hCMyJIvlVI29exMk0dssohJDL3Mg7lO0blHoLBMcjDAY9Rxx53enaNpG4HLE4zjJZVwQCOBnGcbRjivfpHHXxjPPxorkgkbLh5Xz8fkUi6AKEgEgqQoPICnCGq/dwhQjC3LkEvkMTzuwSARySGy2fAOf3rE2D5yW4IY5IH1yfxZH1LDP1qY8cqZd1NjugwwyMM3QSQ2Hz43lbB0QRwiFkkBSb8oB2JsTQyVTTjXliDsuyFOBtVyzByG25yDwCuNo24yBzk4xjYHJ4HOPCgBs53DznGB445wavVtTSMwUZJloB5NDcdQPuccUl/PHHZSVUFSX5RE4+eNTGiWKxsjJGi5cM7suHLAnk8ZOMYycjA4xnNZVBHC5ycffx4H5fbxW530hxSKBlk5xVJQSjgtEqkvDaBOfIE5XhEBfHwI/aKEiJxruvTufl5CSTjthc+wwx2j34zx9AasOlKNszDPlV8+w3YI4HBJOP8xc3ViqWppSmlKaUppSmlKaUqnHrtryneny6eEENarIcYseFRF4H6gsE1/tyE1R5/bnWjqSlrObAyQA37EAn39ifAz+dR+pjNqxxna6Hnjjdgg+/OfAyScDBrnDzKOokaknHcFUflFRBMlQgL8khrwpKCqiovVV4QhXXJdSAWQZGCQWByGBUt4Kg5GOcjyPcc1Vxjkj35PsPGTkeBxyfH3rTR61fW/8A5BZE1huJVkK1yWN1fu1tWUlRDasIUaTCh1yx5IkEyC1MGbaLNVkRbciRo7brkkzZunR/QEeuWD6lqc8sNnMWjtEtmAllkjcdxmEq7Fh2tgOCSzDBHFUPqPq2bTb9dNsIUeeJA13LOCY0WWNnjSLtuD3s4EgdQApG0+CdfFv6wfVTktPTZpOy6j2yxHKVnHjE6dH4W5j1k92tsJFZR4riuS5NMhwbBl6C5MedhsOyGXGkkGrZCPSLf4Y9KRRo7aYZlZiVlvb247jkZTKxWsYyuQQMYXOckY4rcnVGtzn/AK4xM3ASC3hjjXGF5adyRjGcgH6E81NmK7h+suViGMbk7Y7xYfu9jlrkcPHLFwoxYhAx2XYTPptfJvHtzqaArVdOuiCkjSW1jEds/EjIP+obVfbfC3o+5jUx6VFmRiiva3l3bsmcqGYzO6gBxt9SEFiPIJrC/UWvwoZF1F2UHBMkFu67sqqq2e2AJMjD52kZAO7CmyHph/UzvrbcarwLdvG6qvjlNfobGXTxAYszum33IAyO42BU7UOqmNG/bqhMgcEnn4ZuFGRt+o618GtNi028utEurz5yBZLj5W+eFomt7dXa5jjkhiEhuFCMYlKhWwRnOCcOnfEi8TUbS21eG2+SmYRSXFrG0UyvKyJAzK8vaWHLgSlfUF9QXznplwVj2xRmEIV6uEiIHK/y/wDmhcIhAS89VReVH5T7euuO2KCIxr7BgCGBySQfP2ySpHjOa7WjepCMked3gbSDhh9RnxjzjPtmtzfpNheHAbaaooizcgcbRU/cIdfCb4/6cccX/ktdc6fXFiWJ/FKw/LaqjH75IxxzVn0xdsLn6vjPHIVQByP3PPk596tLqdqSppSmlKaUppSmlKaUqu/qxrxs/TvunHIVXw4+3YIqIikP0q0r7EjHnhEURilyvKfHKa1rtd1tOvsYZP8ARcj9ODn/AErUvlDWkwIz6Qf2ZTn9P8wea5f9ysgosapbC5yOTApafH25lrdXc9w2YsesYVt16VYGqmEeNXtC4RSBbHq0Zk+pCPZOXXMU13LDaW9uJLiSVkQRAmWdpdqpGAzbAUIITG0MZDnJCgU+Wa3t45Li4ZYYIFMskrkgLGpB3PgEgKPPkgZ9q4zPU7XZBne9249zjUw82pJmWZBKq7uJZVT0WbFmXU58JMZw7JBcbktmw626nz4Djx0RBYbAfp/SLGe20bSYDbCJ4dOtY3gVoyIplT+YhAfiTflpAQCXb3CjHz+zwSahfzm4Eqy6heyJO6yEzoZnMcm4K+VKHC5OMKDwBishwA8oibW2u0uSbd1NrQZE4ybeURbVcfzrEHzsgsPdVkp6U9S2oNuo7GnQpBezvKh5yvceYehsyNTEcUjwm3khyjnLsknamjckP6WOY3KEEcEBlJB5UZyNJGu+RMFmQBMx70Y+NyE7WRZFBBJXIILKQSNuTVeLTdrdtcywXDJV3Ol7gWOPyc0uqKtQ8lsarF5j9nj2K1bhvMY/iVSNw63bXt9Mu7i5tpUSujVlNDiRXAexpa/Kq6Ql2dyDI6KO4VUnZGhJVEGSWkcl3cjCIAuBqy3BkVkcKM8AuZCoZWDDcArE4P8ASoVdyoWBKuWjTDsEziruq2wOil0zLNjHIZcixqXPZsuOhwrpfU0V4EZNUcEhBJbZE0oIDqim1apKJFZomVd6AmR48KA/LHc+dpB9eQVILA8cCha3CxjmVHDMFZtiqwyfHgooD/TnyfpXc/6Ls3xvNNh9tvoeWUWYyaukxahvrWonhbDWX1Rjdek7HbC3aQ40m5qklsxrVmJKlBFdaFqU8kzu2Hz38QE0ix1IaZp2lw2E8t299cyCJE7iF5VhKSb5HdJWZm24RMKGVBkV9UdJ6hY3nTOkxWl0t9Ja2dla3twNxdbqKyhZ4ZWbI7q7x3ArMFOAx3ZA6JfTZC9ntRSn1497OuJar8J2/wBecXt8KvwqRUROfnhP6ca3tHXbp8HjwxGBjgsf/wBx+vmuk6eMWy/ck+30A9vy/P61PepOt2mlKaUppSmlKaUppSoy3prEudotzqzhCWZgWVtCK/uf0SY4Cc/PC9204X+vGscqh4pFPhkYfupFYpxmGX/tv9f7T9Of0965S82iRrWJMr7OEMyDa18mJPguIJNSoVjEdjToxqomKg+08TDoKKobZGJfBdk5Ndzdm7R0ZgYZhOrhthzG29drD8L+OeBgH7VTJoxOssMmGWRHhdSMKySRlGBHOQUYjJGRngA1zibtemfdXYvE4N9mWIbUZZi9bExfFmY2M1ljc5My5XQr2oK4moOCFOk/WqqaxBFE9zGp7SKzYGMh58ZDf0Z0/wDEjp/Xru30tCYLj5NGHzkUcSSSW6kzhbneyPLKJD2o3xnY5DEttXiOo9KanpNus9wsbxfMGMvbTGUhZCO0TH2UdEBVmlYluSvC49VA3bCmuP8AFjjMGrgSrlnGIkmdV4dko2uKXVTGx5qyXHYy4A5GZrsubxx523adjE6w7PeCPJcaYfbsrmypIJGjGd3b3OkDh4ioiIaIm3Ppm7WZCVbO4gFvBjNy2/Z7jRMCjqoaUdqQZdQW2zjE0ZbGMrgAZVmBJ+vFouOVmGVEGVBr5zmP1O6Fa5kqY5lASIUjL5cQQyCL7jBVfeyDCW684FO3N88ds5dkbDcR/wBv4/EVoqQqWLjsi6UyCJ9yGc8SKGgY92AABCdw9ThkyV26lzeL3jGscP8ANNuAjSLl9qfhLxzRhY5Sd7kAOPQRIuDu2Bem/anLfURaWldiuBbZVFXXnb37N3aY/lOIs1UXJGDr5lZSXDOJx5E9522cC9p33YL87HLVMhfrHayPPjhBhuo+uNB6Rt4ZtSPce5nMcdpZwq14p2PM8jxySRPEnK4aXbhywT8RCxdjoGqdQ3cttY9vESNNJc3LuLZEcJbiMSqjrLJ6NyKgbbtLEqADXTL6Ldr5OzWz+B7bTPo/1CgC6lXDtAU86h+1vMitL+bIhvWiJZPh/uDbCSLBTmOjHHzuOkiGXy5reuR9SdUalrMCTJBd3CmBLgKsqwJEscaMA8gG3Z/e3kk8mu/dJ6M+g6FY6ZIYmngErzNbljE8k00su9SwVjlWUEsoYlcngA1037Gxyi7SYE2acE5QR5ZfHH3TnHpq8pwnz/H5Vf355+fyvT9NXZYWqng9lSfflssefzNdRsxi1g/7anxjzz4/WpX1vVs00pTSlNKU0pTSlNKV5d5AG1prasLjrY1lhALlOU6zIj0ZeU4XlOHflOPxr8Iz/n2x/wCa8uu5WX+5Sv7giuPfcd2yGRLhi2Ymw44xwXYVU4xk0okqcfcigorx8oqKqqqIuuK67HJJJIgBZtzAgjIGDnBJ9iBgHngjHFUthliADwSuceSOCf3OCfr5qn+e2eRsVtuVVHCRfBXy0qI09wxiSJotmkdiQvmYXwOOIncCfZBweAN9ltSdCowLF81CLlpIYO4BO0fMqIG5ZB74A4HOAWwMgK2rOJljlZADKQ3aSQ4QvggI54yCQWGCM425AORrdz7be0zzIpVrnfpBh3rBRgYGww7MarGsstJoNvOrYWLTFn9CKDIBtqP7Z1uZMCY4ClYyYwNPF1XQ+o5NFtVtrHrcx+retvqNo13aRIceiISRNKJM7iQGjjKggKhPFOvNOe7meSbpqRgQFM1ncpbXDvyRIwVthTGAMqzqzDDsACfYxD0z4hjl3cT6H0uI2dZXYTd47/izKFtIFpMs1jOZZj8piNa10BLmjV+Q1GffZfrA9q69MCT7gYus9319qc1tbxzdXx24nkvbe6OnafHayxJHvFvMHSFpTFNgBgrLL6wF8FhqDp+JJpWGhzTCKG1mgS9vHnjkdmQXNu6K6RGWIFgu/K4U5Hqwdr+wN9mNlR8ZXgNbtw/Fkss1mO1d1XXUUa72cY/KR1keNCiutSDeieBtltVbZBxQDlEXk+r/ACaXRNjqcmr7lZ5bmaKSNjJvYcdws7grhgWbI9iatWnPdvCVubCLS9rKsMMciSKYygJJEShFZT6QF884AwTWybbZ0moqOEqKpMGQoqfKmSdATheVT55X4/outrS5dr5YkE7eCACWJ8YAz9j9OamoOB5wSn1PJXx454+37+9dHGDwvpuGYnX9eiwsbo4xD/Q2qyKDnP8AdTQlX8fK/hNfQtuuy3gX+2KMc/ZBV0hXbFEv0jQH8woz5581lOs1ZKaUppSmlKaUppSmlK/C/CKv9Pn/ANf/AHSlcsXqVwVrEd6d1cFhSmJbuL3V3aiJEUaVLrJyNZDGFpkkLu+1XWrTBozyyftHT7ovOua6vYSveXUMPZBghub1u5IYzLFEpmYIWyGm2MTsGA4QkYC1WJodk8qL6u2Xbn+3Icg/U+rPHgA81r0ysmJJmcwRYJruSdvtVBMuR5L8r9vx+33KiLwiKq84vChZgxGVIOV44YZA+w+nPB44NabbRu34JznBAJ88AEeSMn6ec+/MUWNtXNB1jNo652FoXj4UELqhcKHZTVRBC4UkRE/m+EVBWJcKxJy3kqDuyfGRyAfIyfI++DgVj3g/gBB4Jz+RA48EY+9elQuk6432JS7KnCFz8qvPHP5ThP2ROP7/AITWow4KDceCMngZzknOT7jP3P25r8zk8nJ9/bk8+Pv9f0qyeBl1IEJOFJAJPlOyoiqiIi/PH3JxwvC/H7/HOS2ChfVgM+MZOTtUkEcH3PufHPmsL84yPDY/M5wOOT+Xtn381sR2MoHMuynC8WaeFlzIL2sq+x91EWpMxsHnCAeTQWmVdIi4VEJEHlVXVs0G2S9vbOAHBkmjDHyCm4EtwOCRnz5GOQCK3LWMvLGmcF2CbvuxAOOPYZ59gMfSukZpsWWm2gTgGgFsET9gAUEU/wChRP7f019AgYAA9hj9quIGAB7Dgfl7V/TX7X7TSlNKU0pTSlNKU0pTSlczn6rVLX4x6lJFm23OqXcswvH8gO0fI40ORaMtv0Eg4M5tBKM37Wnhsvi6fgKSj4k6HcGS551bCwuldQ214QzY/D5ZCeOSPTtPBwGIPk1W9Twt3tUlWkRXBJ2hm5UhSeCeASvn6eTWnzLrK6Za8py25rTgJ82DLbwmiqqIgyY5tkaKiJwZESoiccLwi65rdRwksGypLAFgTyeT4OeBxjzzn6YMYGKsQw9WRksMZI9x9xn9PYVEjVunk87tRDMhXjgJUgOfu/YSbNeCXlVTnjn91VedQksBAJjklxuOcgED2J8ZyPGBzzxXsMDnKjPAUefJHBz7DnHj86kjH7VScZUamKx36oCHIfd4RV/HCICr/Mn4Re34LhVXWAwYDF5XOSSQMZGeQMe2cjznH+teJPJC+3Az4P8Atj2HA59/ay+FNy3nGnPKDAJ0U1iso2iovyok+6pqCJyqdxUOET/njwkajnLkthQCTnBI9Q25GR7Dn3/InUgZUZGAc+ngnz9ft+h+1bcfQRSRrnebEUJk5TFSxb3rklhVeEZFdXPJDWTINCQm25j7RH1JeHVjgi9nBBendD2udQt2I3LEjyjbg7SFYLuA8Dd7nGSRit3TE3Xce7BKh3IXJ2lQQN/05+p8kDByM78ddkq1U0pTSlNKU0pTSlNKU0pTSlQNv/6btqfUpiJYlubRLMFhHzpcgrXAg5Njcp8EB2TS2isveJHUQPdQJbEyrnI22k2C/wCNtQ0b/TrXUYTDcoWHOx0OySJiMbo3Hgn3DZVvDAjisE9tDcrtlXOM7WHDoT7ow5U8e36g1z+bx/oa70QJs6dsvu3iOSVXlJ6LXZC7c4BkCgREQRX0gRsjxWwMVXlyUq0rRoPcYSkvXVFveh7hiflrm3nTJOy6Ro3IwQAXiVgSOOcLn3qIbRmXPZnBB5CTLkD6AN6se/OP0qo079Iz9RSsNUi4VjtsHb4OPne289pwRJePvmv1DyIqcfc4yJJ+SFfnVcl6H1aMssdjC2QTmG8UDPOP/sZD5z/Tn8uKx/w28GRttyAPxBgDnzwpVc+wI4zjIxWd4f8ApTfqBvyoq3OFYjTRgIPMc7O8Fip1XnkeKhLh9VReV+wPnjntyqa1B0Hrcpx8pBGT+My3yEHHtiNnOCPIIJ588ZHk6ZeEHCQqT/UXB9/OAr44wSAQPOAavds/+kDuyEqsn7sbqYjUxWG3Pc1+Nhd5jZOq4jaoPa0Zx2hhPgTf2vNR7IOpKiCn4Sfsfh5cr2/mrm0twhbPy8bzykNxjdMEQEAnBw2PPnmsq6PK4AnuQBxkRKRnjn8RAVh4BAIH0PGNzWyPp7262FpXKzDIUqRPmNMtWuR3Tzc28sxZ4IGTebZjxocEHOXGq+vjRognw44Dzwo7roWlaPZ6RCYrVG3NjuTSsHlkx4y2BhR/SgAAGPJ5qWtrSC0XbEuCQAzsdzsBz6mwM/lwKnLUrWzX83SMWzVsRJxBLxiZEAKfC9EMxBwhBS4QyEDIR5JAJUQVHOPTjPtnxn2z9s+a/V27l3FguRuKKHcLn1FFLIGbGdqllDHAyM5qlcX1C74VdJerf+n3LrjIo8m8KnKgo72FRHDafYbx1JouRru1NZcaXFm2T8UCksNlMbGrZkQJTDNXGs6rHHN3NGuZZg03ZMUUqRbVZRCHG2ZzuDBnZBkDcDGrIwr6Gm+Ffw3vNR07+GfFXQtP0mSLSl1BdU1DTLrU1nlhlk1hrd0n03T1+Wmt57a0jlfsSv8AKub6aG6ileZNqN8Im6dXjVjGwrOaVrI4l/JCZY47PCkgLQ286pWPPuHWYzLEizWA7NrBBl2NIjG20kz3fLOpLTtVXUI4JEtrqNZ1mYO8LCJezLJFtaUhRuk2b4woYFCMtuOBz/rf4cz9FXur2c/UXTeoSaRNpkL21rq1qdSuP4nYWt8JLfT45ZpHjsfmltb3dJHNFOjsLfsKZK//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAwEBAQAAAAAAAAAAAAcJCAoBBQYEAwv/xAAyEAACAgIBBAEDAwIGAgMAAAACAwEEBQYHABESEwgJFCEVIiMxQQoWJDJRkRdhgdHw/8QAHAEBAAICAwEAAAAAAAAAAAAAAAQFAwYBAgcI/8QAOBEAAgIBBAEEAQMDAwIEBwAAAQIDEQQABRIhMQYTIkFRFDJhByNxQoGRM1IVJaHBFiRDYrHR4f/aAAwDAQACEQMRAD8A3+OmmnTTTppp0006aadNNQntvJCU3bGLpOQsKVpEnb8SbJsTINKPE1+ELB0SHYYZLYXMiYwY9SooRduaLKaWx0GU0fzZFkWQAL6sazJCzAGmPI/EKL+wP5Pk/gV/zVUfK3OXzkzvDvy93rK8T69pW1cG7/qGzcNU9OyFHaG8u8K6PaRum3XcA29R2OqOz5jC47I4tFHLYVNvH3H2qX2Na6vG5CeYhjlnCtMo6EyyojIhVW4yIYqZ0a7dS1jj0VH7rMYyQvDC/tTiVJjF3JGfccAImRbKEZGBA49NYJLAio/+On1Rb3zZ+VXHWr/GTY1ZDh7R+On8qc7bPOu0bdCcxyLSbT0nhV1m1j23MTtmKd5bDsn2VujfwzsSGKyhkNp1UkrY8UJRwJJ3X+yVcqhCAU5NtSkH4giiSAaN11G3p7Ush5KFPAXy5K6EmQV0CFA4seLf9y9avc1raqmeFlcjSvJ1u0Wa6ykhnuMFBr795jvE9yVMka/7yURM9RaschVXRHJWKm6pipqz9HoGwPII1WSxmNqNlSLVqIDD8iwPH3/+tes641j06aadNNOmmnTTTppp0006aadNNfk96aqW2LDQShKya1rCgQWsI8iMpn+kRH/1H5mOnZIABJJAAHk3oBZoeT0NQ7tHKSk0rIYFDG2RkZF7CUHet4GbGJXMyYNZEAtBNjxiWSyY/j7TlkjMMZlZTJxVmEaH5HiCas0O6rz5I/nUnHx2mk9ssI6/cW+vquvJHmvNeNYlZbad9pYsMvZwWOtKbEnFdqwVkVIk/KXQpwsKZ8e7gAZIvERP8TPaIzbhlPiplrgkBhfGZ1ilSOvi7IwZq8/21PL6sA3q5iwIBI0H6xlkj4AsgdozIPKq44geSCT1Zq+jrnA7lns7Uu3sWupC8c/s5FRYy8qtgZIEW6LYgWGAh7VkMrPykogu0+U1Ue8PKcybAhSZYDEk0ayASRlixUPEey7IOXlT+L+58u2CMY0WY7I0vJ4XkBpgKDMjrdhWIUhlPV32L14LWdf1TV784nijjzWtA++ssv5CnoumYPTl5TNWHMY/K5ccBj6Na64jYXut5M7NuSgu5yE9ukO7jIIRYvZAHENS+2rLZPNrbxfEqygg3RJJviXAZF5TSmclfjyZmYDoABWr6APJQeQq2NDWYHFuFz07C67kLGPFNZa3MOqTSY+OwC0HQfYC7WZMAYvsMQJT+YiRmJs8G+Q7pvL52RtMm1PN/wCVxYIy/wBYIpFVyNwE59kPG4YI0HTUtjonUbeJttfb8BMeLMGaErKef2fY5qSCcfh/cKOoUkSVRrq11kx/X+nWya1jTppp0006aadNNOmmnTTTppp001EPN5WL3He0avhtnRqm4bRr+ax2n5ZlROSLH5z7E/scwzEPnwydDDXGVchfqmJKclUIbEi3xnLAAZEYi1Ugk2R1YsBgDRI6/wDXoCxkjVmJIUsqUXP+lbsKWb9oJP7b/cQQL7qlzVvmDvPCWD4R1T5r8WXtYt7Tl8TxPtHyE1DbMVn9GRynlL1zFau/bdboIjK6Pru/urUwxmyvyVzCUM7lamCv1MRDVHEvM/TMswiyAPaHJhYARWUntj3QNqLAUkGzYINzjwylvcjWNldVZFYFSKC8uIIFi2HxW3oljdg6z42fljizHankc/t+565h9coiwG3L9+lXdBhMrWiuqw5bmWnFHeulS5I+xTBeIn2qczdNqG15Wdk5uPj4WJBJJlzuSDjpEv8AdLgAsOIU3SEkftFEX3xsPPjzI8SHFnmyZ5EXHjUErOXYBSGI4V0CS7dG+Vaj7Q9g0vd9GbsfEedXkZnK3GXIaCsXdsZIfCZl5LY9UMOoSYqefZT1x3ghgiKfPfSu6bH6j9P5e+/0+3nbvUOK25ZS5s0FQTS7jCyrNBkWFMWRDEUVI5Y4wycWteRbW27xBn4O7Y+2eqtvytrlXDg/SKxaeFMZwSskPE/KN5OTSNG7Mr2pAICjrsbyVp+P3zBcccibFr3HXIW4TZjSdb2bbNcwme3R6yiHBhsCOYm7nVtKRAreNqvYthLWzz7wvrJssmVuOZlR5PpveNhykaRIp8zFP6DMcg82MuJNmYnCZjSys8UlhbV+hrruccWJixTY+64O7YihPfjxZT+pxVsDlU6Q5BaI8eURDKoLEECzrKak/P4bHXFWnY1TAnxX9o42R2IwXVFvsBMmZnMeUQBebJiO8x+OtniG67ZiZuTuAwYn928dMVyY2LuI4RLK8cLtO7MPiE6LBFL8STr0427OyMaPEbJkXhTtkqFkAFtNxUNIqxxoOmLDoWQo1Neh7Gb6i8Tl7YTk/urgURNizbaqK/mj9yyOJYhZdigig4CR7j2H8WsMkjLcyqjGSVEBkQtIEY/JVDWaXtgoJAokAHVHm46RSFoLaIpG7UHqNnFcSWAABYUpBIJND8akrqRqDp0006aadNNOmmnTTTppqKuYttDVNGztitmK2KzTKDZxfsZ42GmJDDJQI9zCfXJiL58VqOYmTEu09cklEkl42saliT+3ofdiifsKfNfi9SsKET5UMRRnV3AYLfQ+ya+h9/8Av4NNW60/lZt3yi4E5l413jWaPCuv8X8i6TzViM8q/kchs6svnEZ7UH6oIx66OWr5GqYHnScKV1odXuKfWagxjR7m8uBjyQ0WnyXAcxEo8QWReKspAVmKCpf+mPJoGxssm2xQZGRFOPaMcSEwhVV1lBUq8iigVQN2nTkEV8utfNylw7b5i0vkzj7fdayQYTctcu4+yyxbqiJ2LHrvUcvhiSb6tfKYbLV6mUxXvtVbda7TrXK0eSvMdFwNz3pty3M5/p7K2qBQETLys7FfHzoX9uRpIP0bZCo6yAwvBPLFN7be9HHIhLJsk+PgxYuCcXdcfNm9xX9iCCdZoHpowjif2mKtG5PuRxyR8gEZgwBOLnGPwUvbXUsX/kBlOOvk3yfZczGxleStXS3jnTtYGCrUsFx1xiZ3sNicpcT3tbNsL2nsOYydxiYyJ4mlj60WM2TuWTCkPpF9jxCZVbNyc0ZOezxfJikMeM0DZEnMhVWaeBUDMyo5tGjBsWKRm3tNzaNVZYkxlix3LsAA0ks6yrFD7Y+QjSRTxAYrQ4w+/wCLPJ3xt5SzWV+C3yd/8Za7ljr09r4E5b1LYeS+HNTyFAybYPi7HWtkw+z6imrkjsWKevzduYOFNKgu1XoeiqiLiettlTPy8LbYsDLyw6Rbv7WNJtuRJuePGI5Ocbx+7kLyMlGZy0KAIkjgnUrI9PbhNiwZO4nKgxwjzbaTLDlRjDlYkG0f24eShAVjA5vTtGgAueOCfizGvxvO68q5rEcrch7iy/sPI3Pu6Y2le5CzfrUdkRxxXFQ3R9bwAhNfUtH01mN13WaNdH2hXsyx+Xt65teV/VKT1NvO5+qJ/T2P6Vilr09gbJLO4jwFj5PPvM+cmLMMlmUtOY44cWGNAkHvuPcksss+kYtm27B2WPczusjqdwlzkC+5Py4iLETGeSKSNuggdpJnZm9z20PAed1L6nHJPyLXg9X+HfAnKO+2BzuPxeycx84Snj3jvWMZWD0nl9iRjPvdiyD6ihbfjWiTiM1mcjEIa1D1eMbvjYEePt+2DdfVk+4LisJmVJYZZM2IwcMeHLnx0VXhi7lZzcs8vCSZ2ClW12b22zctsfZ1xVfnED7csaYzmQmVsZcg9SMRwHFBGkJKQqA3JbDtpwvMG+6zxdQsc9O0LK6vyDqG5cj7Fxxr9jXdh3XXNXuzlrmi4J1jZ8tb0/B7hk1UK+zOZkcw6/ryLWGJfjfcwLdtx2xZEyFnSUxROqe6YppY1kUhgZCQ/EkcmCqnJgCb/dqr/RzBZ4TivwlsceLKnIkcHKm0LxjpCOXDviQDqz/SeRK+yConuT6bVcHItQua6vuJZ4NpyJmfiQkUQsSYZTAl3KY8ZmVBOmSitF8gVDFlBKkHyfuiCeJU14vog3rmVhPjE2DQdkZTRZStVZAAog/gfWpT6zahadNNOmmnTTTppp001gN8s9c3lVmM9g7FMKdy3hBq2crXG/hSOoaBbreWqEUGtWUNRlVYvyGwy01YjNgRE88uO+fgjFhnjx5o5llKyqGjyUDW0Tg0GEingfsClog6vfT+Vj4uazZOPJNG8Ei8oWKTQMVPGeN1sgxGnNggAWSOyIFXsNdObquyuVzToHCYo7iaGLivjYy9UhrNw804L+PFh7I+yOFQz1LhRLCZ/FBlwZ2HKgnbISDH/Tys0ECmP3Fb2v0ZjSlix/b+QkXsXw4fY2WNIsmF2hWCSSSSeIGXIuURMvujK52eUocfJSSpJ5cr895Y5LwSLGeylarev5Y0KrPxJiBU8e6hBqEeyxlxrT5mUh4jPs7d57eUThffsODKy391sppo4+GGsaEwCHkSDwLSOGLlizKOPXffeFNlzJY8ZQqwCN5Cctyam5BeNF6QMvEBQCbvrw1efob1qGS12dnTg6VDMsvXMc99FZUDfKpVJtiuPZTTEmisjYsiNqy/kGY/FUmVtGZt028YGKmHOcjIx2bGUY5kkgMYkLRKBFJTOASyly6sOQo1Nlxt0xM1NtzMg5MJhinRJX9720kRqVZGLPGKFkAgcWQhaYgyAWu6zyJVxgciYlFLaqaZZicypqkZW9ioAfCZf4ybfWmQC7Qsfcfbx4tUSxI56tMPDw97OLlbviY+PvmMpXHy0KrlT4nH4yIzAyOvt0J4H5+wRyUojctVeRlZO0/qYNuyZptnnAMuK6lseGct/wBI10P7gJgmTgJASCrMCNfD/kPjvX0Wwu2y2AWplCcfn8hXjEulpyFcPsoKqixEl2BgtewWKEvNM9uuc3Z8PBxp8nJbI3ThG6xYmRIhxmeRgsSfpmaFHPJgJC8p5Rq1IxsHmDccvIkx4seKLCJe3yIUf9QAqlnJmIkZDwuikQKvxPIDvUfXrl/XMirE3s3W4/p0LC7NDBa5rmLxtK/VcYskolhqh0u8iErVZbJIltk/OSiOtC3CDfXy4Mab1X/8Hw4c8E8W3bRse2xwZmL07Y8q5LRhpHpkMmNGXQrdMGCjacUYM2M+RDs77/JNHNHJm7luOVLJizAEh/7YbioLIyrMwoVRXiTr7d+39s6vkc9Y44s7nhqH2gDepY12tZq0bbCasHh2Y4It5C2BnLZGKjUSPsOIgBmYkesJsHI9LZm45ewZ3qGPDXG+W04820bzlyNNFAZ9vGGObzKzGT2nSWIrzoFFI119OYmQN8xdvg3eHaZZhMSM+ePc9vgCxvIEyv1BCxxMBw9xJEYNVnkdTXwfktrtgWt08Fa/TshXr38Dbyd5C8nXmxTSy7F+sAxKxw5tXWuPHuLLITKhiWwJbB6Gi3vFjzsPc9uy8fa8T9JLs257hmYz5+4xZeMk80U23wAPjS4MjHDnklap8mOR4gqG9U3qxNrf2M3HzoTmSNPFueFjY8zYuO8UzxRtBkuSsq5aKZ4Vr+3CVRzajVgtJTkU6iLDps2E1kKfYmO02HLUANdMf2lpiTJj+0l263QmySBVkmvx/H+2vPDRJKjipJIW7oE2Bf8AA619PXGuNOmmnTTTppp001G/MGrUd04v3zWsgmHpyerZpS47mDE3FUXWKNus1cw1FunbUmxVeohap6wMDGY79dkALKGAZSQGU+CCaI+vI/nUrCnkxsvGnjYq8U0bAgA9BhyBB6ZSthlPTAkEG9anus/If5FYehksxVvYzdNewmwzryNa2ayKM3mRQBPI8Tf+2+3W31ipIMydqiLLppp1V27Rgs4k36vFkCQZkv6YScVxcgJkQniORUGTmUomg3uKA1IAzEa90ydv2LItJtrEGY0PunOwmbH4A/biNwsvKyWUQ8goLsyrbD0+f+du96Rhtoyuc4lwlGNbZh6+007OwuBt3LZ6qm7UxOPPFkFkcrTxtuvaySXosCvu1QN9i4KaXMnjL+y20YDzztWXKOcTyNTAMPZ4MvwALAkhaIIDcRrth+nMKVTId63BcdI/cw1WOKYRBSodnMvuLxLsyxkFS5Pw5AMNd7qfze17dMRe3bYeJNtw+F1qnjMrkby8g4ccirYJ5svBQtn3uopOWDbaVSy8SnBZiiyIhcwDl7VM6rNhFBHIq1FksI+Zf93ttGsbgyMeTC2ZjVPRXWST0nmxRj9PuKBsmNyiZOLwmkWNCeHuRySOjNGpoCNUNFbXoDvt4+oNxsytjs/k6O0XsRmSaypmU7WvCvw6MbIyjI4bEkoMtjTtEXgm0lNE7yjmINqvKBjZW4YeTmTxthbxPIojEMkG6tBFizYrnhNt4iB/RZEllZJ4zGZ1tJCynqTiehs3HwlyJNz2XEABZ4Z9ukmOQk4FwZkknBcqFABxjCze24DKqsRry1v5u8O8mghisHyNsa0uo4hfqyGRKmnI5Jgropstg116r7shMFkHkqAWsia0ACTmJvcm3bsyndNp3mdYsdlSObezjwKeQb3failEZlZo0DZDfOgFurGpu0ek9wwS74G/bDA0kodng2qXJn4Krc0UvCW4xCRysCUhJ+RBNCYcT86dQzuexmh3dHv7tt+Kts17UqOIENnMKqIRUT2zNixXVBN+2mzaaEElFYFOsEtnuKLKHc0z48R29PYuRLiKIcKXLm/UyRoo9tTFO45sGChhIENj5XbEiBl+hl2x5mX1P+kgyFGTuAXGkxS0styOr4yq6qU5cRGzcuZKBQFC69zv/wAkOVtQz1DXjw+ExVrK4deXxbKT4zM1aUt+3cTLRhVQuxWdMJGuqJWf5OrYsq8jm2jz92EoQtjY4IAZcaJHKhrsiaSzyXiRYUBfonyY2L6Z9MZODJkJJnZbRO8bjILYqu6fIXBHzIR0ohvcDMDTLGetWtfBxjdg45yW55dz8nsGQy7MbYylyI9gprVathtGnHkUJpos2TV2CF/cGiHGP5ERuYlIUOZJJWkAYvKxZjRI7J/xfQA7AHjXlPq51TOjw4Y44MaCP3FgiHFA7syh27+Te2qCyTxHQru83esutT06aadNNOmmnTTTppr8bCQsIdXZ3lb1sScRPafBwEs+0/ntPic9v/fTT/Hn61phfMfgS5gt35ODWcquyet7Pk9c2fX8e48fduV25VzMbaCuJyDRv0JqC4ZGQi5W7mryJcTg3FBTZBMZA4KyKTzpyCLUKejdEC+wLFHXv+xbgMrDwY5I5UORirLjyOvKNxEiiVBIBQeNgxXxaMRysUKldzp7BjsZFa3m32cRazHuzeHO22w+uypYVXGcmBzBl71V1wnybAsFQeUAYBEUZaF7cBVlIkRG/BogAMB1y68C/wAgVq4dZkY8mYxe4rOprviwPS/dAdAddGj51mftfzP1wdQo0dbzd/HkFGMa7GjQvH/pGSC21yrCCqyjhAAlDWmaxBZRESLZk6afFy5gqKrRqi8QEkZUN8RxBsluh5o9eOrubizbbiu8545EryCcM8dyIyjomizE8mdmUGvl+BquDkbknY+QdgdkHZa+nHqawMdXH1VYronsEwQVVqSJsFcGcwHjHeFjMl5TMvDxxgxt8CxejIzAG5BfRBFAee+PZsUdY87cpNwlUu7pDEKiiLN4PZCX4BsNRs9d6lrjPmvedK17K6zgH1U08/cxjr1q4grrvPGqIK4qW5s1h7FLHeZ1XM9jC/f4+PbFLAs5fn8hJQkQ0EcKWKqbB6BawfII/Ou8ObKvttEgSSHmIZOw6B0RHKsCptwo5fRN9Ho6ze+LPKzeMS23Nq0uns277PjW46ln8hcKsNCpbEyuGawE3PsWGSpkrU1XtWuUkS5YclkxlXGY+zfFoGx4kLsFji7PxHQJB4gWwIClR3rPnwyb3HCuQ5hEeUMvIkjgRpMp1sIru18FX5kBV4gnlVqNZn6rl9h33Ycbld8vXr+Yma+Lx50sepeKGpVISKpXVBi3yCWDDRn8A0vJjJj/AG2MSkSFZDIZOY5EBSCQFVkABHJxYBDUqsCBR1GyY4sLEeHBSBIOLSyLJIwl5yftcsy8QhAJVgSSKAAPnZo+KOoBqHCWpK8fW/OVy2CzXie41m5CBgURMftIwSlUvMOwG+WGEeMx32BRSIpHaIFPd2bJJPQ7JPY8X46188eoMk5O65TXYjb2VP5VCe/F+SauzXk/QyO651S6dNNOmmnTTTppp001xP8ASf8A1Hf/AK6aa1HvqSzktC+VPKuVxrFzXymxVLFzHMCSTcVew+LupU9UwMGE2ZaxJrYLVvGDUYz3mY2cSntSKTZROQIsNwJ6Yf6loDo0fI8a989HOuR6bwo3jLCBJURwQOHzdGKN2Q5VqIPxbwQSNUp8k0stl72Vv1DYhmSMrtmguZJU/uk4/jZ3Iuxz38TkpKY9neZjrX1mS7kiTkGJBX4hQxJr7uj48V/xrYsiN7Ptu6g9Fau+IoFifDdgEivFfZ1EeQwFFSGNIBiyS5lhsrn6rNhcVkJUHgBMARBJscMFJiZC7ufaRLl8lLNciKPi1Kkk1RqqPTAiujVX3qtEEoNgJZLGyVJChQbPQJscl49d0e7Oul/TFqZBfaVHB6vOV+wlz/EIGYkJjHlK4Fn7iEYZ5iUj5do6xmZWpaIFd/K7/wCeib7/ACSaHXWu4ikT5HiCpPHs2F80QbJPV9/R6717/VqeOKxXhyq0PKUxLJf2WHt7qMjXM9pYBesg7T2Ke8z4jElOIjkG80PJFggWBd/791+a7+5cTOCgKAliQCwBBJBIsE9GgST4AP2TrNfRsTjaFakV0mBcYoXxj/D0ACJYDQureczNr2rMhgREYJcwMeJKOOsS+2Us3z5ED6AQA2xoi2JK8QCPBDUQK2PG94N+4cOJ51xJZzxICgftrsOfieRUePNhPELU0bFGKU1KffsVaw43QMhAC5qyNsMKZOQ9gJMhg39xOSjsU2+3KCyqCv7ur/7TxsH82R0vg/XnVDvwaSJzIZH4qOafGwwLcGABFBQaZhZIIIAIrW1LxTTLH8a6HTKCgq+p4ICgpki8/wBPSRSUl+ZkpLvMz+e8/nt1sTkF2IBALGgeyP8AfXzRlvzyslwbDTym/wA/NtSB101H06aadNNOmmnTTTpppP5iY/56aa1i/q46cs+esnaaM16eW1TXsoV0Sh8DbhFmpBHTk1Mg1TVAJZWaRGkpMl90wJY81V/TRyN0PmhIJJ6I7K+fsDkpFdk/WvZv6fTmTa5MdaaSPIkCqQV4hgGB5/tIJJ6cfuHVg0Nf/csiGBxWdzzbhQvF17P6pIMgIIqsFZUFdofsMXtrEqqDpXDDgJE5MYgNaEDSSqiJRcqoFkjsqC10LHfL80TRs63PPyo9vxcnLla1x4nmlBIW/aVmKWxC2aoAEfKhf3qtbZ/kRve2bQjV9bppu3chlxxWFiSpk4rli4aatOLN5Kh/dMqFtlpoGWG6QbCwFk7JFs2GoX3BI7ADkOZVLA7IC01fhSSD/vWvEcz+oe9ZEsoxEx8eF5XMNxpJMsTGlDs54F6HJjxJUmuRrkeK2c2ypsCcFvXJqNMvNv8A6b5UsJtmRRWvk+Kja1m5lbenYhSlumRbeXk7eNEAKx99KI9vUpduwACpgSiK+QuvzVG6qh9XX0dUb+qvUMrXJuuSobsCIhAD5rpQALq+yO+zWpg2zHctcPHZzVza9X2fU008NlcHlq2Vxlq3tmGzVttAMpgsf+p7NQZWq5OpZo3BDLPuK9DX0/bWFtlXMm14B6MQWwO0PEsCvTEIej9Hu++/NjvF6y9U4r8o88TqoUA5EaSoT2CSrKxAFEAggC6BrWYXxV54y3IGUbTyRAzLihzq9q2KWNrQrweumla6ghBCpD78W1SbZrDaU1Arr+xlDuO2Lios2MWEf7XUguy+TyDfSWQvZvsV/q1656D9aTb7PLte6rH+qCSTwPGyxJLH/bU46xWplkQc5bLNyA8DiSbhOK8VavNxIuW/1Za2vH07AqYlR23sALHrbICtjRloka0mZL7/ALxGZ7dY9thktJCr8Hf21aitkEe5T1xNDzTMVLHwdbhvmRGiZEaPH7mPH70qFgzKvA+3yjslB8WALBVYigSRY25MJWinhsVTGOw1MbQrDH/EIqJVEf2/p49Xp8n/ACfu/wD1PZ/ydfMkhDSOw8M7N115Yn/312nXGumnTTTppp0006aadNNOmmtdv6zdY8fuuo3hhi4zmjfbEcEI+8aGWeDK4wSymfEXQyJFiyA5/Hl5T48ZXeED2AsjrYNfJlDD7pugfNV+aOvWv6atcWeBTGGVXCkEGmjq1YN9kURRs0K6vWqf8pM/iR0h+sFmQrZa6cX6dRjl0TujXhiVykzMU2YrH9tYlhkLqrQrQMeAiQV22RyHJachWSMtESrklG4KVbjd/MVXx6PIX1WpX9R87Ej2g7eZjHl5L480UQB4zRxysJBzoL8DTOnIsCqtXEg6qsTpewfqFK3RXVtity7C2qbUySINZQa/uECZRYrmcxDliDCJRdxA5IetiBH89g+ASevNjr/P/Fd68L4tVqFoWPP34Nija/nqiO++tT1nsPPKDsRd27Vsdpd3A4xOH/WNFxSaVXN1azZYoMzgBQov1tcH9uGboLa86kqm7jsjZTL7BmJ8L5ItgnnoeTfR8A9Dye7BvI6npiASAAfbHmyKFGqH+o1ZH2Bda/Tfqua2qxgsfUXCsPp+v47U9bqWr9fC69r+Bx5kVevVHKsVmcnkMhcfYvZTMZmnhH2slaswjGylqhDkliByFUKAHfQv+PPVkfyPPeuGSz8OhVL4FA3+TZHns9H+OtTD8amV9G37D5nZMxh1Yundx52yxWZp5J0knIL/ANOaKZmxnnCXJNMSJshbEhEMgxiLlo0+LNDGAzPGQoYcfJHys0FIAtWJAFAg+Lu/SuZj7Z6i2vccyWRcfGykaQxW5AAI4+2nN2DsVUqqljdAHoDZy+KoWtm3jjDF97Lqz9v1qKtRsugadSzl6FqwE1GSUpb6oKLESPmLIIHSRB+Nd2wsJgnIuqM1AsWVass4okC2A7WrJDWQBr6H9VvDHtWZmKqxNkYPNnaMRSt/ZpFkJX3BIAwAV/2EcaBvW2qPaIiIiIiO8REf0iIntEf9R1d6+atc9NNOmmnTTTppp0006aadNNUp/V208M+niS2M1FWGTncYFq/YGrVrJB9W+9jHHMBJQAz6ld4JhR4x3iZjrKy8sLIHFWKujd+QCGUkfj/IBPkdffon9P8AK/T5Oep5FTCjlEDMXYNxUcVsjsn5eKsGtam/P3Gmzu2Knaw54MLuMyuYrYS7cpWXYvIYrOYDKYStaqroGVi0cWLScmn0k1EW8dTU8AKSgaPEy0wppOSFlkFL7dEHiRxYkjxRBJ8C/A6Oty9W7DP6kw8Rcd4sebHyPeLZAawkkZEkXw+SliUNi/8Apn86rf37K5XXwuYfP4LEWAXjn4S9ncZr+YYNo2asnWpvrgxWibxxVx2Ur16yo9OQx3pBcw9zS2GDIjyUEi0C3/0+YEnICiCKs1V2Fr7Na8R3faM3Z8mXFy4yyxlQMqOKQwOHCsOEjADkC1cCeSkEEd3qI89YwtiNYyFyamPsYNWHrmurrTox+Vbjsy7MLtZGmF4mfrORjIDTydwv3epVf3QJoJK8ou++wPPfYP5+ga6oefvxeqlmVlArsEeR0QPP+5/PjzRsDUrY3cPDJOdjsJh12szmtsyHqo4O9cKy7ZUYYL1NwVbbFzONDHieusdK3Yyw4rlBRPpwxnJIFklQALJZgAAPJPKqH4P1/NGuUVpHqNHd3LBI443ZmYqBwAWyxqiBV+SR96zl4y0/auQquHyGds4CsDsjRy19zMPbxuStnTLCxlbd2rDlIZkc1Zxdspm0mUhczew5CohU5spXS5u7wxGXHjDStwKmSN0CK7rVX2WqxdHyK8Wden+lf6fbhnfoN3zZ4cWJcqKb9DPjzDIaOKYf9UdCP3PbJQMLC8X75UNjv6dmEjPc6aRYaK0ITlkXoRAzC5mpRt2AhUsk2fyyj2xBT5TJTMxH9oOyyKzTsFVSIyFUUAAQO6/xZ/Pfdg1r0T+o8oh2d4gWdnDEuTZ/uSAkmqAIB4tQq67A1s8x+Yif+fz/AN/nq4188656aadNNOmmnTTTppp0006aapm+tNUcPBGgZlRkIY/eb1OyIFAE1WSwLvAJPt3iAdXhkRH9Z7x+PLvHZiRjzgNVhOu+/kfsfx5Hg/Z61v8A/Txwu7ZK922GxU3+0o4JPnyQav8A/laiWe2fK15sNqtIW1YIAmDa1iaxSbZlSS8xAAkYJrRACEpFkFBfu61uWNBJyLUHHa9gE92bBoXQYjr6HY17EZWVaFE/EEn8AEDoGuvokfdaxk5Ezmdy1lLqmEwd6sVZyrdSuhGOh7WGsIdYL1womGDHyywXlYOxFdYzCZOYyQjHVgJJXiZSXVlHdV8gOI6JPGhRFfWqDdf/ABBwBiYMGbG0bh8eV1+cpKhSRIVXjw5n4jkX42Qt6gtWmm5y05LQqantBhfeYvZl1sZWYKmzXFlGH+2IKwKknMNgZlhMgoDtPU5s0KhePPZlDALyS5AOYBawvFgBfRB68C+xpa+mVmdVyvSsMUhEpabEz/axgxR2jBgV+YUyBVbg/ZIPIKCNS3x/q2y4katrA6br1S4VKJvk+6LmoYDbf3Bfe122JdWFI02LWJkSvfIE+ZKTVFysrHnZ1lzJ+Iak4L0wXgehQX7YAnokUKIF3G17RnYCQ5G2+n8CCd4P/mffyAZIpA8wLLNcryIVEZCoQQzFS9ElbD+O8blchjsa08ZXrnKEjcOoiyuqDQFa23IcUTLEQ45St5ePl3kSSLJkJoZGUSOEYkf6b6fgeuVD8KDy80eiSSNeq7cZTBCZ40in4IZY05FBIAOSoX7dbsRkiyo768X3/TAqxk+esFSlMSjWta2PNMtr7yNhwUq2PTBjPaEDXZbMASQw7uRGztM9X+zBTHKwFFOIQi+1awSb8VxKgC/J6GvPf6msU2wPyB/UTRRe3fUYV2k+P/eXABJHxFfHrvWx5EdoiP8AiO3VzrwbTppp0006aadNNOmmnTTTppqtr6rXHL99+Hm95Cm9CbXHtvGb3K3EYfe0Ma6aGSoKMBmAsOr5EGJlkiqZQQGX7h67UXSWJRZkQgCyO1+Q8efHjwTV9DW1ejMxcTfsblfDJSXFaq691bViD0QGUfyLsa0gdwZi6y1XJY5l2Lh17+Jatg13VV/mHotKFYCo/wBokmT9yyOYA5gIbNDkRxsigvL7ys4ZCgEQQhShD2SWY2GShRXokAHXuHJvcY1H7ZVSGslmY3yXiBx4BaAcMeRsEAi9QTcS7KMcFcUrnubgrwzxUnzZEwtbHmbICDnwUJsaye8dykzkpjGCSV1EatJKV/YgJLcf3sAOwAPP0Ov98bzRoryTSCJA37n+PEtxpb6s0R2OuwRQ11xqt0irm1CK5hBSJPBUywI7TAktpsBzILymBICKImIL8ePWB45YrSSN4+V/FwwNKbP4v65DsV1Wu6yJJ3G8clFe0fkLPdiiB3/zffevf6xmDqv/AJCk5IwYYqkExMrITiIOFH3AhElyntKYiRnx7DAThKkk34ItQSa7HR6A6P8Ak/f56zJIyiyfJ8dgH+CaFX9kdfya1ktpOz2G2lELbqaHsR60KtERekREA8XesfKPIBIiEAX5x7IAZEYjo8Yc9AKLsDs8QSCVBPZH8ns/ZsDVrhzX8SXY9Fia80ATX0CRZXqhYF962Wfo46jdzWf5A5Ec5cY3XsFU1ioAt8rFvIbBajIW3PiZImJRWprhbYkYJ7DGY7jJTsO0xGPHZiGAdzRY/uo9kf8A2g9AUB99mzrzD+qubH/5fhKblkZ8mYAWqLGvtRqpHEKxLEsvHwB32dX+dWmvGtOmmnTTTppp0006aadNNOmmoR+SWi1uS+BOX9FtQ7w2XjvbMeqa6SsuG3GIs3KBLrgJHYKL1St2QuPY3/YuYMhnrvGxV1Iq+x2LHyBWyP4u9TdtyGxdww8hSAYsmFuzQrmA1k9AcSez0PJ61/N53bLNr3rdaLTU261hyrFT8wYuSwkOKabpnwgjCfKV9+3bxIvIC7U8/EM1iwOfE0Qpon/UASD4JBHXfZ719ARSK/zQkciSVsEd0RQ76oiiD2OwezcQu2WUuP7hNawMzItTKmV4csv9wMlZwQdpiJ8wmDAo8wKJiJiIrvE6TRytC8fIiRSLCsKa7BBBH8EfwTWu0oWaNo5Y0lQjtXsA8RYPxIPKwCCCD0B/n5P81VmuiIxqoQDfMFHdskJnAyP8ksk2F+IgC7HA+Efj+89J5J8j23lyGl4AleQWgCbP7AP3D93V1Q/x1x0gxkKxY4iZ+34OxJIPxBZifHYUCgB0O/PuMPl6jmdq6wrrMSgRMzcxfcgjtMzMQfeJYUePaInxjv2guorRfuZWYgGgrVddeK8Ad+eyKI86lJLyFkLyHdCyfvsAWKu6AJN+e/ORmqZxb305tPABWCqwqT41KpqQkVLFaQiDa2Zg2NEZKCOZmAmJmOukcTMVQK5NmzZNgkdgd1V0BdnpQPjqxjnqTm44owWwoCj4qQPHbXYBBPkX3da3FPowan+mfG7Y9wKLK42/d31KqXpFaQoatSCiptQ/wbgfYtvNzJHwFkQoCLwKB2XEUJjxqPqwQTZFE13+KPX832deNf1KyhNvcGOqgLi4MRBH7ryGaVg1ddUpX/UFI5AWNXC9SNeeadNNOmmnTTTppp0006aadNNcTHeO3/78fmJ/+J6aaoq+b30JPj/8o89nOQ+L9ryHAXI2fs2cll1Y7Co2XjjN5e0RMsZK1qX3mGyOFu23T7bbNYz+JpPe11y1jbdoyMsMkCyEtZVjZJFd3Q7FCzQq/J+yetbXtnq3OwY0gyEGbBGAsfuOyTxKKpUlAbkFr4iVJAo6FDrVB3Kn+HN+oXqNq2fHuf4g5UxIkUUow/IF/AZdwDJSEWsJvGt43GUyKPGRBO0ZAImS82B2iSgvhOQbETeLrkGIB6Hg/Xnv68da2uD1vtbgLIM7HYgE84o50BA/aGjkDf7mNb8UetYrXvomfVto211FfFvI3oJshNynyL8dX02LiO0HDLHKiGJDv+6YspQZR+BGJntGB8GYq3BOwevmRZ+uyQePf4/26I1NHq/ZiAf1ouyTywZuSn669og/wQbB/PZGQvGH0Gvqc59qF7LoGicfwbJ837fyxqdeuhRTHaHDxzG+WI9cTMf6evZKYjuMTM9oJgSk8XRAOiSWYgmvlYA7F+D4P8Ea4f1vs0ampcidj5MGGI2J7P7pmiofR+hYFnVx/wAXv8PrS1DJ4/YvkfzBU2Aa5pda0jirH36Fe6aygzq5Lftin9YsUnT+05wmua3kRAZleSEmdlTY8IKfm3x/7I/gProtXI/5HE/7aoc319PTDbMURMQQMjLIldfNMkKgRqw+J+bTDrx9HYy0nSdV441TBaPpGDx+t6rrWPTjMJhMYmEU6NNPeYBY95I2MMjdYe0jfZsMZYexjmGczQAoAHQAoDoAAf41oORkT5c8uTkyvNPMxeSVzyZ2P2SfwAAB4AAAoAa9V1zrDr82kQLYQ9pIQMoiRMo7iMzHcVwRlHeI7iAycx+BiSmIng+D/j+T/wDjv/jvXZAC6hvBZQaKg0SAaLEKOvtiFHkkC9YP4v5G854vE5Opunx92m3slfI5qtVyepa9tc6mFULzq2Ct2At1cpmLVUq32t/J26ciUVmslNKsxL1V9Uj3vdokdMrZ53nEkqK+NBk/pwocrAx5iSR1ZeMkjqRSkgKCCF+js7+k39NszNw5/Tv9U9lg2iXD2+efC33dNkG+mZsWObcoIzBNh7fDOJ/excODI5D3kT3MiZJY2lm7iHm9HKuM126rS9zw45/G5fJJylvXsqvWIRico3Gpkc7fqY8SPNKWOUxKwqtW6iyBmyT1sCLbbd1XcI4XGLlRCZJXEjQyDHqOTgKldUv3f3xgKbU+bB15168/pxL6Jzd2xn9Q+ntw/wDC8vAxJMODdcF95MudhJlyBtsxcjLYDbnc4We7TI0WShPsiORG1//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAIDAQEAAwEAAAAAAAAAAAgKBgcJBQECAwQL/8QANhAAAQQBAwMDBAADBgcAAAAAAwECBAUGAAcRCBITCRQhFSIxQRZhkQoXMlFxoSMkJjNCYoH/xAAcAQEAAgMBAQEAAAAAAAAAAAAABAUCAwYHCAH/xAAzEQACAgEEAQQBAwQDAAICAwABAgMRBAAFEiExBhMiQVEUMmEHI0JxFYGRM4IksWKh8f/aAAwDAQACEQMRAD8Av8aaaaaaaaaaaaaaa/mmS40CKebMMyPFiiec5iLwwYhp3Pe5URV4RP0iKqrwiIqqiK86/QCxCgWT0APJ1FDe253E3RrLjbDaHcTD9q4mSYVk9Zlm6dmwttn+3h8miJTYLf4LhFlXixLITTLRl1FlOyPJIDoJgQHRK6dJk+IX6ylT5X9vK/3BRZANUOQJBFg0K+7GrHHx44amyoZpgJF9uBAFim4EGWOaYMXjABW+MZJBamBU1pjbncnc7pb2D27k9VO6ibl7hQZ393GUyjQsPwqBd3lrntlSbfXIbI7aahxwcjHi4+2fNyW3r4EyuMezmlBfRvaWOLkJGsjEBS5QH6Yk0o7PwNj/ACIFHuqsyJMOLOyJ/wBBAYY1RshFDSy/2lQNLxFuzBW5UqqzClA6PUncU3fdPusjDY2OP2NBLfBtMAu6OVHn1NnRnrQpLiSbyHKPFNahuQ2RY6+1i18mmPU+wsLOwWzjwMeY5V12oKgHtuu6LUPN0PsUR5rWmXbiqxMnIWOMgYGw/kEJxDcCpFkFiHsGh583bXqhwTcrdrc7ZeFV5tS5lteyklWRciwjJqLGcgq7uLHMC3wvK7KvBRZdWx5UhlfNkU8sqxZioIgu3kusgSQTxYAHiSysvff5FHtTRBIIF33WsMnbJsaGGcyQuk3KlSWNnXhd8kDErY7+VE10OjqSmv3Vdppppppppppppppppppppppppr4qon5/2RVX+icrppqCXVd1M47tzujsD05WW2+8uR33UXJzSTjOc4PjEyft1g8rbeLV2R3bn3wpkUVVW2a2oAxQnFKAY/tnGGjyRFXXJKIgCSQzHipClqZugSqkWBfYJo+NW21YjzySTq8QTHAMiuQHZHDWY7VqcBTw8Wbqz1rQ3U1gu+Ga9Pm4uJ7F7rYRtru1YjpnYBlWWz4La2pzDGsnp8ljVeTQJlDlLKxh1rCV0qRKrTEj+8GeK9hRMlDqJN6CtNFkZW14yWkcTZGdHHIHbtVeN0DRUQADOAp5AJI13rqsfDgE0MkmJuGQhDmVMfEkkVoihQtHJHLGsnnkfZJYcTzX4lRtQeLb3ZhMo6vcjG9j82xa9xC6rdy30GSTLKFeClVlQJ9NZ7e5BjI4WR12T2MzKPqk5ts6vjQW1oFgy3yTSYkqOTNiNkYsxaMTtjY0vMFOALOqP2Szm1NMhUXyAq4Lf8TwaOI52O6yAQS5MHtqknJgB70cje3wQIvDgrhuRIAu8e2L6TdvumzHqnZbZ2zWrw6EDI8rosIzC7sbsmDUk/JZMiXR0szvWSDDKu2tDV2L1slrFq4Q21jTzFimO6uyZcf/AJNdsg3DGG4TYL7smBkMTPDgrNHjPkGOMq6YxyZBAjyKpeUOisxRuMoZU0+G24ZWJM0MGRFtz5uKilMnKaF5o1uQlWyPZXm/tkgAhuKBlvdl8fKMWaKVWzMelRBcvdJgW/j8RAM7+1K4/LuF4RG8Pf5VVo2o8r2sfNhl3ESBI2xJ4iRyaGf8L2DGxegegpDEAGrJ1CMeDMhEgy4ZAaEU+OKaz0RKtfIgAdhfJNlQLz7p46rOn/qkqMgsdit2ML3QXCZ0OjzhMPtW2bcav5ApKrXT3NGNv3ngWIY8mOpoUkkCYyPII6OVG2o7CsOwwJUjwwBqx+Rf341zeXh5GG/GeGSIMX9suK5qrVY/nxY6IsWBY1IrTUTTTTTTTTTTTTTTTTTTTTTTXBz19Nr+tzdnp32kxno7jXU+APdoNjvDBoMjiYnNZTQ6xC4VcWdy60qbQmLU+UopLinpDknWc+RSqcSV0WWYWuWcY0TyGJpD0o4gsULEAOUFcgLs99AX3410PpoYp3ArkNGrsjez7wuNiFYyJZtVZkB4FhVggdsDrNel3pdptg8Y2uwmBvf1DZPmO3WHW9JGs81zv+MKUt7nJK603ALGgTqxlyXGbO5hgFVYrNyWVQ49Ar611PDi2cVJxIWUWljK4uXLFkmMsk6VKiu6/wCUXxR4loWpb7+J5at1kQzZEk+DhmCaRffhRGicLCWMYWRWIWUBiSypya6Y8Rx1JDcLFcoyNMciVGQHo7zEZtizJY9FRU02Tn0GXUy4n0GylW0OTdR6mHbGrskWPVzo1lZS6mJWGnMhvL5K3ctgGfiYuUUw49+gwxA25riJLK6SlZZYG9wGSXEeRYmfHdnI4qYmWRQ4l7duqYmRkRn3pNpyMn3o8OTIeOOBk+KzKYyI0yBEzxpKqADmeasrcdYRgWO3EWQedaUIsikY3ZvrLadgN3FvLCgmMY2Sjfc47NPa0s72hgy3VNnHDMBGOJZtc8b0c/mX2v3RBl+oNkkOft7kR7ls5k/XYw/b7mHl4bLlpC3k406SRlG4SwMexdS5cSM8G07rGuNmJbYe6qEx8gm6iyYcpWx5GV7X34nVuQLRyhaGvYjWWH4DbXW41hu1/F1TPAeC/GZkP/ruVNMdxYmPEg14HzDkbNc9wxwayE0r1MaSoCmeV3Iwx7Z6Yz9w9V7l67f1BtuRFJj/AKHLxP1HqDIld+WNtRTFRspjDLYjx4MGEMSzyhSWka4lkz97xMTYMP0ouzZkEkc363FmK7PDGqBZ88PMywqHjvnLNkS0CqxmgiDAN2tntzN5MKiz8ar8y26sJFgSrmVUeBPrbkVDkIjRYWWU8UkkRgy8emSRyTI4jBCD47B4wewO4lqu35+67bBkbFtOb6em/WieTBmx5tvkyIJ2DjK9uWRXThIOM0asKSQt7asrXEh3Lbttz5sXdNyxN4gfGdFzEmjyUiyYhRxZHROBEiD+zIy9SLwEjLICOe/oRenP1Wen/uTu5bb7Bw+i2/3KoDYdj4I2Xstc3zC6xjNJk/G83yihdAeWldYVcu7KyGS3LNjGvlZYDMiieH1jHlPsYoyEEOQ6FWjLWxYfJgOyWVTyAINAVYBJJ4b1DkYeTEYcK5xizLL76rIUEUqMGtzxQFmEZKgP8lemHAjVoNF5TlOf/qKi/wBFRF1K1x2vummmmmmmmmmmmmmmmmsBzTcWhwqKUk175Utj4wmQY7wjcppZmCjiNJkPZGjOJ3q9iFf3va3hjHPeJr0g9uH9RKyxQ81QPIQqs7HiqKSR5bot+0fm+tTcLAyM+X2oFLEK8jmieEca8pHoAlgqgkgfizQBI19kmXJYwJocgm1cCmmOSG6JHR8l4HsjtevksClbGmu912HEcMELWscOMo3PC+S/CeFZsaRQ4X3IzyfkRxsBWAdfj58dAGq78GfiwLi5COqtNJGwdOS8bA6J4crTokUSx/yseBqOHlGJYhaVsangVBZ1ohwRbWbNc8bSo96jZCYET3Jwju8sZqMONikaITmj5Xm4d+2zb8/B2ab2YcvLZ4sUSSgJkupJjixHVCryGwTAwSRV5sqOFvXQz7NuOdiZW4LJJJjY4SXIEcREkYoCQzhmBHH6lHKN2oM6lgNabyTfEu3OZ2GQZtWMiRZrgFDbRJUQdcdyta0DosiQ8CSiEaNnDBd8xC9rSRVf2qsjcfVODsK5OTvDR4eFGqmPImngiQuT8I4nkZFyfe8QCJjMXYRmOyutmF6fyd2jixtrvJnYlTCkckjqpPbyKncIjBuQv8KBcMoOsGsNyszua58PZ6DjW18aZanySvjYzFq8fDkFvbyJE+0lZFMFADGn29lNkEmS5shRNlS5JizpblK4zeQ9SZvq3edpfK9K5GPteUrx5e3wxTxI+ePbZjj7hNmQtCTKeIWKNoIeisko5BhebVt2wbbnND6giydyiCPjZck8csy4gDBRJhRQTe6qqA1MfckC/KOMH4t6Gc7ybT4bYVe4e8V1S4DPxuBSS8liXkmNSyT5hJWJWxqiOApRpYzbLIZAYNKsN0yPaSpdesI0hhhPXNvVvp3HxcfO3pYsX1Fj4Iys70/DEZN/k3PExTJl4OJt8Kvl5jmVJPYlhEuMyFJlneECTWuLYd6lbJw9paTJ2mbJaDE3QyD/AI1cKWdlhyJ8mQrFjqIiplSb25kYNE0QkIU7Uwj+8oZVyi+v5sPK8rsXZHMrTuIIdFRDkkCKkFAljGQsSN5gw3o0A3ESKjxq8kgpNc76ewvWI2xN93nfMrG3bet0/wCby0lZUw9p2+RpBibDjwToC+FDFLFiu/sgzvAXiLNMzmdusnpw5P8AxeDtsE+FtuEdtx2jHKbPy1QNkbjNPExRZpGWSVbdlhEoD8VUDUjqSKzIZki4lzp8GbHiyo1ZJmBCRY8ogiAFYRYnb4UBGI9ZQoh3ucr2sbII9rlcnoGzP+rzZtwycjLYlCsCZYjHtlGZOcHsqI44XHKUQsxlj5AyM5axxm5K+Lix4WPjQG3DTNjklmDBWAnMlvJIHpDIqiOTiSigjiYK+n5sP1Y9Ju4OY7MZ7vmnUn0pWeO3ObbbblZ+Ntbvdie6VtlseXfYDkyEvbdckx61rZ1pe0dtDVK+rFBFUhFWGQsaX0eLPFNHUdsI+i1H5eSf9mu7BPV341U7ysLrHOYP02WSqyRwrWM0QjCiReKqFYNxUhgrNfKmBDnrhqVqh0000000000000001EDdCDeUWaUVhOKF2OPl3ZiAfCDPZctnAVXEcxVFKFbU6KMoRuUwSDY2RGQTxK4eOdiT7guI+HlpFJiiQPgTxr7WVaBVZX5KyvF+9CLHdEKabXV7Fl4kWNmwS4ryPMkBGUkjLJjFHtl4BWRoZhaN2G7okhuJjlulcWEunp6DCIkidBg3DZJpEywRbFwX8RnHbFIjJCxQ+RCcHYpwNcquY5RqRecz5dx2/FxNvGDmNzenyZmJNjkCrBQeKcmJSSwF4gWbBPUYOFiZU+RnTZWPE3tkpDEtRgleQon4GQhaZFPZJK8R1rH3brYhH+obfWmLKe2q2mGa1iR5ZTAI2QQI5IZnyEctghu7DKjPI4naxUV6uTKBdplZC2MkubhO0okVWleNkZoxIrE0swCsAy8XDUq3YOtU+NuaAypkOmJkoq8GdUDI4SRkKAhzFbAMDz683XEcAPUF9alcQ6hcf6IOmrpvwfeANFupjGK7j3+5bi5JI3FO6FX2+QY3g0IRK6bgY8fNLmV95n55xbeqm15bWqZDBAlMJq9U4/pPJ2HMk9SQ7bP6exoP1WVLuiq+PGsL81lQy8XjljkUezLEUlEwQREPRaTsEG+Y+54sm35Odj7vkyexjYu3SJHIPdUgtKAHTJjZKLxECH2zchIYle8Wx49vd1trKbJNqJt1jo6nJLLGlq81svr8eQeEyM4bYl0OFWT3QohJwIjJyhkOlAjuUrHyFcV3H+hd22P1l6Zi3f0bPmrgY+45+1RJvCZFztt7KoZZZYosgwD3o6mCyFwrJbMpfVj6nxd19Pb9Nt/qSHDyMibDxc55Ns4p7QyebMrRiSSH3P7b2oKAMwYEK3HUlsaxPcCrlhjZxMxCxwit4mCrVq0yOcaVFIybHLENkFckSjSJMCKWA0cJjCkBCeOoJAkM3rcbB9RpnRvlZG0xbbixO4EONLlbpMSnL24crJRIsGAFfmFE7uOIAQAkcxlZWxTYjDCi3AbhMyhjJMmNhqLq5IceRnypCDx+RRRbBuQNHxfZblXWTCznCLTC8lE9Gx5eH3VjJjW9bGMqtMCRPjslx5Y0cqlUiwRFRX9nk8oke+ozsf1VkSR7ltK7HuUUqL7+z7pk5EMsaOPkpzIEyY5CHCtZxUcE/wBt+SqWnwvsEED7fua7tt00ZPtbjhQxPDIynkrrBI8UkZI+JAlZGC/IUxXW2I17Op5TI544LGwHVK2VCHPfHxiqlKZCNgRrIopE6ZIG97nlkki97md4EE1ictmwTbpEXRsWHNyf0qFcKJmx9jxZgQogxc545cnJeMs7ZExgBYco+KsvUN8bFyVEkcsmNGZ5D+qdDPumTGVJM0+OkkUMMbUFjiEhAsSBvAb2sI/im5NMg2g4AZMwMhY/0ia5sGvr3lH3FbCkQoslFCZUjgkDI4fYVzURxVQjuh2KPd1xnk36PBx8oSEwxbdNJJF7RFqOM2PA68T8QTYZeyQQNVG8Da4GR9ufImhXiHGbEokecLTWyTTIwcfN4zxKm/oBdSXExwxDY96kcwbGOIv5e5rUa56/zcqK5f5rq0/PVdmgPoX0O/41yXX0KH0PwPx/1r9mmmmmmmmmmmmmmmo4dWdSCx2Ez2W9DDkY9Ch5NEnxCKKbVrS2MSVNnwyJyjSiqksGEY5rhnjkMArXDIqJ+GMSDgV5XdDoHkASpBPhrqj0Qewb1d+nchsbeMJgQFeQwyK37XSVSvB+iSpbia/IBHeqs976i2V7eZJc49YCiZrDqLg0KHYTXqAVlDjyHIydHWQO0ZEMcCN4GCckQTle8TEb2okCSTcIlqHMZouqhzFEwsdFf7gYrYHEcH+PZFa9pG1bPOA2TiHHlCswkwiYvkw+JdoyisAT1zTkR0T962FjPqmbdy1CtvjFPDnKVFc+ZAmyu1XN8jPHYVk8glQLuQklSWNcrkGUTex6tbXSZmdEWLbZgSfKyYo5I5KFUbV6JHdmhZF15I2D03ts4Aj3fNjHHjUoikjB/aRxKkkGrXskKSCb1gkGZ0N7kbg2/Uk7p62rfuTl1uehttxqdbOBk86+kxYb5UW0UIaySCxtQSYrz2ftTyrViPZNnSkQjH124R7VveFJib7swnxnmHHGOTO8TTRhSvKO1trYe3YkRWXlasqnW7H2fN2ydG2ndx7yQESZDYcaSLAzMCFlBYEJwIdQVY2FII8Sfous3YLZt0jb8ceoxsuK3c2OWoDmZJCsuGz3SJjVTh6FKkxXOIhnd7Hp4SMH2Namrb02309jf8btmxTYuLiyzlIosvkoeaVpJmHNWYlpCSSXaqA/aAAn9P5e+SR52XvmLNNlwxFpJsBo39tU9uOPiJBxHtrShRVfK/OpbYP1xJu5jk+2rYU2xwmNDayTanmEhwZEkkhRFr4zW1jJs50WL2HNIjo4COOyOhSK5zmzBvb5izQthSvAIGEwlnaNBZpoiUiWRvhbEoashewe6jJ9EY+3SY7LnYxzZsgHHWHHMrGNUUrkN7kxWJWlJVVcBjwZx0NbpPuXjOJ4zPzKBXiLQxYL58m2rhvjDSuGJTlkLIK4J5EcAm8m4apOE4aN72qibsaaKKNnwttxwoUKHAl+QHY7cgsqUCR8rII/xvVa20z5GVHjZuc65Duw9giNijglQOI5IjsO178Ux6IGsQo+oSyySOB2JVdbjpb1z1qy3teZtzPhFDGdW3qQUa98cbQe7kAjyFZMlR2x2kHFby5+UO4ZoAjjGPDGXMYfHjRGI6ZQtAurBuVAECjZo+bWT0ztqOWy5svKKIsjIZj7MbKzCWJpCQjBm9tC3ChRFtZroJ030p4uNX17aWEq4vL7IZKy7GWvCthQAgDX18UHcRsSLFYQhVCwpEdJkGK4iqqMHeY6kRhmJZmJJdiWdxZAZiSTZo9eB9D7Pl/q6ZG3GPGgQQ4+LjRhIkACJJIWaQggLyZviC5UMQBf1qRut+uV0000000000000001h+4WNhzHBMyxOQ7sDkuL39E8iIiqJLSqlREKjVVEconlaRGu+1yt7XJ2quslJV0YfTAnuuh35+tbsaUwZEE48wzRyD/6OG+781+Dqjp1B01nttllflOFYxDxSzhAmVMifHkSb1JNgMb2SbAdbbikupDnEj4pGRDFH4jPdGKBhlXUXco2jdSC0S0x5RsxDNZXkTXQIY8lBAI/H39DbZKmVjtzcZF8T7ckax8Eam9qkYiQX2JGUmz8QaB1zz6jL+h3A3HuMvoaGVjqW4q41nAlsrgvdeMr4obuVHj1YI0WJGl2QzSY8ZEcUbCqQxXme/Vb7tjkSORAB7FsePzI4gCiRYFDjfE3V63jH9pVjZrH7QQGPRJ4KTIWJYLQZiQGIBqgAdq9Cd9Dw/eeBf5zlNfjWA47juW3jyZNNIysWzLEhVDJFOAqkR9+NhwtFIisdKFHY7wcvRqJHLKssUjFEVTIXLAseLIVHAAE+4HZaIFhV5AgqNaspJJMSfHjEsjzcAiqVRQVcN/ccsg9viDyViVb/Id9xU3ZyONabqZ9YYhbTDYxPy7IJ1A+MWaAB6iZaSDwzAAd7zIxwSNVPI9znJyrnI9yJrXzJTmyKCGbiDRPEklSTf7ipW+zZ8nUvgsZUByeKoGIclQ3BRJx7CkcgaIAsfxrr90V9TW2eD7NWsLM86yNbzCK05Meqr7KpsapmWc4sssSPjmIQooxrIimczyypMmepCkfIMWCrlRNEKxo85kjkLENLCoyJRFJKxIpYkAVHFciTan5Dq+sM2GbIOMYZIAkjLFlP+jibJECBb9yc2TE3aqq8W6Aawe5o4J1I1e7uL1lXZZA9cIirIFkMazZNhjuZz+X+1Y+2VrZ6IiIFYcM0oMUshnkIioNz4nHKkQwvLxVmIYRsyLHzYFCSxFk3xIsKFtr6GrNMXBxJWzsWAHLKp7LPGpYUpV+Kx+KNnl++QqAvm9birtzsciZKCxx8a5Bl9k2HW08CxYkKDi1SFHxzlmiaoVYWaRyJFCYoZBY42+QII40eToMbboYJo443jySkYB4j+1G5BDlm6DkG2B643xHWqifIycnDk/URvhwiV3JILZOTfacSRyVVqmUWtksTd3YG6fqA+P7R4YGbL9/Z2lb/ENpMRqtYafkBX2hWiYv+GPGHIDDjIiIiR4w+GtT7UumUIeA8J8B5/x6vsA9mzVdXXjXgO85Jy9zzJSOIErRKDRPCH+2pNdcmC8m/BJFmr1ubWOqvTTTTTTTTTTTTTTTX4uRFThURUXhFRfwqL8L/sq6aaph9Su4QcXyfcbE8ggwLuZTZvk2OxwyxeGXHox205rBx5QFR5VhsH2APIG57Ef7ZCIz4fr3CdkDV8iDQX79uRSzCif8WsgkEE8l6AF/QOzY0UuLhTDlH72LBK5W6M3FR8rB48ge1U/XLsnrlxu/Dp7KoJfUdnGIcBUVID2RrK4DHciIjbv47BuY9e0bk7k7Ue1xCdiFWgZkABpaNmv3NXX7iKAI++iK/wDR0Dq6qRZtAQSyimPdFLs1QBbUdquJIyGcyH7eOhHRTnIVayQ6ON8VgmDawkZUYwbyi8xEeVBtM5jSojGtc/FigcFgVsEija1VD4saJPRHZoWT9AwQkylmXgVs1yRATZFFmB+++6+/rvXpPwCZHmIhoEGOJTKD3BllxGOZ7chSFkSHGYNTcuRvIeGOeMaI5iI5U1rx6P8AcXuuyDVmgSOwOz1Q66IoaxJlBNBDXyoHwFB8KDyD3dXa+L8d7u27wXE0u47c1MlRWvAMyLBR6+JXr2siD8r396+BjPGV70RHDVJRO96ob8ZYka2LheyCnZLVdd3f2bPg+fAOpqyZRVBHFEzWP/kPGwSONG+ujVEEnrUzsXkbCx2GgwKS/GOqh8V0qQVtkWXOcNzfH7IMoEaNFf5GyFKWSUwjjExWKFHMbIxZcVJw2RitPEENRtISHY0wZu+PAeStH6Ug/W6eLcZIOMGXHBI78S6R8DGo6bgSDIWFgKOhV2aq5P7CS641mATobGxWWcGdDjhYJxzIx8hh3TZ3jf5yKJIo/C5fCVCSHjE13KpYYTc5uIRQjMGVV64KzsSBQ7CqVHfRoffeo+5oYsdpDIS6xMssshJ5fFVDi6ALMGIoWCR33q4NjQWx8doY7QMjNBTVQUjja1jAIOBHYgWMa1rWsEjUY1rWoiI1EREThEs27Zj+WNfR/wCx9HXzRMeU0rAk8pZDZuzbt3Z7N+bPnXt6/NatNNNNNNNNNNNNNNNF/n+vn+mmmqUvqN0IKfqr3gi+HsjF3IviuAieRqrYSB2kViDbwRRyWTxI9jeF5e9onconbo3EGonAsmKMdd/tABB7uq6+jevfvSUhl2TCDN5x1UP4IKloz5FHjXmz+0Gj3rklv3luP7X4Nf2smvrfqZmOqYrC2CpO93OjSJwpQayQB8p0GqFEUdi6Kr5LCKyKft7+XQ9r29tzzPZUpGir7srEueKB1JC0Gph4Sz8m+xXeHrL1ND6V2c7hKjzTSSfpcOEFLkyWicxu6FlZ4UK+5MUshPAFjXMXHt992cysbOBh4YUD6JAk3tpZ+SLWhhUsYkcMmwmOSDMOQKnPDeOFCizjEO5gGDIjXuH2kXpbbOTARTT8Q0hE05CqikC+MYU+T2F5H68a+fMv+qnrLKQLBNgYhCkM8GIqk8aPLnM0pWvIWgD2L1t3a/cTcvcHJY2Ms6l6KnyY4DLBr52H5rFgq2M5hHi+r3bsarYYjkcxjmJE7pTnPRI5xKXvnQ+n9pZva9mIHuhwl/A/ykdCKvqls9EH7FUvrT1llP7Y9QvFOx5LGIl9tj2xtmiRbFBaJKgHu+9ZFb9SPUzsrDj4/nLMbKs60u6CVWrKxa6uIFhi8mEWfBuEhQfd0zpAbGuljjEK8FrXSQmM57nOamjK9J7aQF9mbHTmQVgnBtl4mnV1m4jsGgaIY2PrU7b/AOqXrPbXIzMnBznKstZWNEJEKEoReM0RujYY8h2SG/E4+nHdaPuTjRLaO9A30cj4s+MNgY8MopIysjTYMfhDxQEcE8MoDNIgZEd7RSTN4evG7xtL7Xkkq5aOYSPjtRUhG5LxkIVArqSQyICpADCh1r6A/p/6xj9XbYWkjWLN28Y8OdHalTM3zSaACSST2m42jyEMHUqS9Fj3I6V9vK61QGQQrSDGiQbvFqiDUKVJVtYzZ0qrhFaYSPY4ApB553Iohma4onhGqMC9yNsjQB5BIEMYTjGTbuxRPF8aUkuLF2ykEd3q29R5skcPsmGVxNFkSPPQSOKKNZX7IsGRURfjYsMDXKhq2mJjRjYNicNG1BtT/wBRojE/2ampWvnjX7NNNNNNNNNNNNNNNNNNfF+UVP8ANF001UA9XCghVvVhuWrZaQVsouMXkh8kRCR3S7DHK7wjjOAMjmONHiDf3FREQ6m+5EXWOZ3BERYPAqzEEgEO4AFfZFGj489jx7Z6JkL7Lj2RaPOirdEKkrW1nx230fAFC61Vm62betyGXjVbV5RBn3laCaO/pD28SHNpiulQyBHPJbnr/vmhVkkHhfKE6LFArJLxFRjeg9L4jx42RNxUrkGF43HTMIzIrpZu+DDlV0GYUAeteSf1k3TEzd32zDhyWefa48zHy8ZhwWCSb9PPHJxIFtJG3FWFh1SwbAuFW3g8ywvLI2UVNPRW0iMxUZCtPpl9Vy0K8T1R6V02X7czCBA8b1a4JxqWNJcgCEY/qIjKj8k9sgAgqwVwTyFjokoQQByrrsea15CI5AY5KBClXSiaIBJIcAgEV0QTRB/82e3Bqq9y9NybvFEpWEv3X0nAI06Za4uayFKSYOHHlwoE2/h4qeaJXNqYoZk4cXurI1tDAjJkfYsamUzsgX5cjGGDRluV/ED5cD18e7BK2ASdbmVXbn7bKxYnj2yD5A8eQBYLXV9kDo8rOsezeJnmb5ZdZZdRr20ub+4lW1nb3TarHox5c4qPeKnpj2hW1VVH5EGHFNMJJaAYmEGEjVa7Jg8js7Al3JJLFEskk0qhjxUCqFs1UPNDUaQlmcuvJmLWQlA8mN8ARdDqu+6NijqZ3RdZAw3KpQciuq+vJPjEgVUBlxVT/fWc40FoIQo1XPnSCHNIEx3jaBFa8SPdwhHvTn/U+LPNtQEcQkaDJM0hDKfZhWJmLkg9IaAevogkA0del/0h3TB2z1TKMzKOLHl4Bw8eP5MMvMlyoBDjlVDMZVt2ioeSbNE3aP6E4K2u+G1VYPveOTnWNI5XL8tCGzizDuXtRWorGAk+PhO1vwrV7nKq8Lg8eRbtvgwHYqqANdWO/H8d+SRr6N9WyGPZc9iarGlArwSQyj/dlluwCQPHQ1biT8f68r/VedTtfO+vummmmmmmmmmmmmmmmmmmmqrXrdUUWt33r7r27GlyPb7HENJO8qRxuri3AIkkYxcOdLVK88Ejy+UCRjMTxsKxCLnkAHEib8PIhPfRrmp6HnsiySKJBH49a9AzFsGWEsQIslmUL0adVLKSf8PDUACWB1Vb3VxbKZmWzb3Gi42GPZfwWewBeRiSJBzYlY2cpY4WrEkRhNuK2wZVlmq8ciIwAiCVVExUn7H6hh2rEkxZ1ldTOJgyKjKiGrSiwPbAk8Pkvmib1z3r7+nm5ept6Xdttl2+IDChgmjyGkWWWWB5CrKyxvGOUTLF8iCCqsaAFwGyzJwTJUOmm49WQJcWyqfa+4prRIs89bWW1EermihUR1fW2VfPrwSQjkRSunVKGcZ77FXA7gTR5CB4TE6Ex8GUFkNqfi3EGrDAMrMvzHmz38/5McuFI2Pmw/pJYmZGSWJ42JR3R6DRqzrYHFksEDkejevCGWnBn0/IWw6sgrqtzWFCxuXQ3ro1S3LauxhwvoJHYCkdYmLOtWT6nuAqtdEhrHfCe1ptYJ/87MwsMsiIjIaHMEfE+2FAju1AsVRHfnCU44AcSiqtlFgKTy6/aSQq1VgdirHR1sbFcohUk6shU+PY4yXWCw5QxjY7cWseOmP0c6nmEWPMxaAP22cxLQ1jmwSzPNPleM0c0RwojgSxKkRNiKIII/k6VEnBaJLMqjjIjFpLJLGqF1UaJPeKLjoZ25cxHFHJLLKF5AgRonNhJ9gKKHg3R10S2f24t35PhOVTK3Fq2NUSJFqOFBNfOniWZHyF9ej40zmESwYXIALZWkwkuzOlRAAGRFjjLFXiN+9TYmbh5GBjRzW0gQTUEiKxylnK/MuwkFWWUFgFJCg1r3z0D/THdtq3nafUG5ybesEET5IxEM75ccmRA/sBwYhEssTSK0luShUqpJGrLHpb1zrjqP28A9iO+nks7j5XjsFW49aHaRreVc5Ff41RePtVqufwiIiczt9e3MSB0KB/Avz+Bd1133+B36d67laPY8gq3xZo4vsk85EBB+gALI7ux9jVq5EVERF/KIiL/rxqX514Rr7ppppppppppppppppppppqs/699b7fINobgSIxLDFbWGf7lR5XU1wcgexOPwwdsVXuV37Hwi/Ov2c//gsOupwT332nEUPHXd9/ga9L/p+9DMQ2R7sZ68jmoWz/AB8evPd+KGqp2WS2tKXhU47nNRF+EX5VXIi88px9vx/NFRfhNUjEhW8UaA832fJrrrXp54/V/wDdfx/7/wDvUSNxlurIs2F/BFfksV5mCrpR5Y4ygC4Q1Ip5PmSapSPWUxBBQIxsYJF9wwpO2dgyJj8Jo9xkxJRyLhATybvoKQEZQOPb8r+RHfnh/UuPlbj72DkenMXeMYurY000ixe3GFTmxk5GdJC3MhofaoKoHMM+tQlwLHDslS12qvWzYqw1SNKs4T2S2HkuFK9oUITmc6KMaSWMerO9zhI9WNapdXP/AC+YskYbc8N0YODJ7C3HQBUyBlCW5LA0CB+OtcM/onZpYMmVPSO8xyQnHIx33G0nEkvGb2SjMx9tBzpiLsAEKCTITAQysUs2V9Bt1HBAfLHxe/UY7ZDYSvEjnldJeeY+UNrjEeOMoI73N+1jle5602XktmqJcrc5HdUNQlCY+VNfBE4xhW+IDMpam7J41rtdl2pNhyDjbR6VhgxpJU5bgMiJZDAfbFTSZDSZDTKC78Ub2fiQqC+WugWAz+XCd+eFRE/Kqqr2ryqJ8Inzxxyqr8qnPwmqdWBbweRHZ8rXX3Q/Arofdjxr0mM9j+bNn/8Aj1f8H+Ox4786sU+jhAbc7+nnOYvdj23eUWTnuTnh82RS0zGonCI3lliZe5OFdy9nHa1F1cYH7JPPgf6Pz/8A6IA/7v6Hng/6iyFNnjQWBLmxL5NEIkjsDfk8lB/PjVnfUzXimmmmmmmmmmmmmmmmmmmmmmuB3r47dT7PYvbDdGvJHaPEczn4jbgIRGSZEXMq1JlYWIxzXeZ0afjpglCz/iOFPUg0d4XNU/IwSqv0Fcir6U0a+yRYND6BP1rufQmWsO4ZOO5I9+AOh+g0LdqT9clc03gFQD5vVK3L5/BiIq8cO5XleFVePntRfx9znN/ScJ88cfFO1NYB6I/P5+/z/o+Tr10Nf+JAq7Pj/wB+/wDfQ/F607PnNV6d/Coio5OeV+PyrU+fhf8AJU4RPhE+XcroZfo9g9ij9X90f+9a3YXd9DrsePyB12L7B8d6/hFNV5fhVX5XuX7lVUROXcKv+FOFVV54T5RE44Rq4kEiwwHfj7oeT/rx/wD4dYK1H4/jyB19dfi/GthY9Ma4g1+eWr+UVERFXj5REVPn5ReE/aKqouh7Brvo+NSQR0fIvuvsfepM7fT3MkBVX/CuQYxflU4eqcp88oqrwna34Rqov61ggI8mv4Pk9Hx19ffepiN/30fl5ABHYP19VZ/0OtWwPQ2wO1M/d3dSSwLaYNdTbf1r3E7jybIshmQ23YNEXsFDigrBvI9WIQsrxja7wlVt1hoVgDf4ufgfyFsE/wAgE8QfyrV/Pl39SM1WOBgA3IryZUor9o4iGK/HbD3DQsAV3Z1YY1K15Zppppppppppppppppppppprlz6yO3iZ76f29MxkkgJe246HdOGxjFf7p2IWgvexnK1FcJCVVjYPadE7RFGJxFaJHubnGaYi65K4u68qaF/kmv8A9WPOr701kfp94xSf2zF4H/hZFPfg+GCkj7Fg9Xr/ADpsuzSf5pDvMGcJSv5cUbX8OVyorXkaqEY9HfCtf9zP2nK6q5FDOSV4kj5AVZNkgmrBBskdVfff17NHOwXpyRQABNo3kUD+4Dsf5fQoda1JKzQJnvU1e/yKq/cGU9qIjPhUXytciIifj7v1z+uUjtEbv3LPfTLYon+D9dkdef4OszkX0Yx/9W8/7v8An8fX86/iDmtW17OYkpqKn+J0hnDVX4XlEZzy5y8OX98cp+lTD2muyyEHq+JH0fr7APn6P/uhmjFgcx9gCu/+/wDQ6/8AOr1n1DmXDmshwAue9zFYSRKK7sREX/xGg2qhFciuV3KorG9qtRVRdbRP386/AA75dCrJ6BPXj+dSI5xQ+Pk2CT9fQoCqPVf7snUicIvbM8hXz7QEIbRjXshNSKjVK57e0R+XFIUaJ5OfI1E5RqJ8pokZDD3AT1YJN13VAA13YN11V0e7lpKQoNcVIuxddfZbvx4+ibAq6Gr2nogYQbH+jQWYFmKYe5Wf5DewYniININfjsWuwcTXuIjULImysemz5BBIo+6Q1quUyGRt1AvGNez34BIpR4oV/wCn8kknu9eLeuMpcjejGq0MbHjjLdfMyFsjkAD0OMqgXRNX9gnsZrdrjtNNNNNNNNNNNNNNNNNNNNNePkOP0mWUN1i+S1UG8x3I6qwo72ls4w5lbbU9rFLBsq2fFMjhSYc6Gc0aSAiK0oSPYv5501kjtG6ujFXRldGU0yspBVgR4IIBB+iNVGutX+zBPynIrzNeiveesw+LYlkzQbU7tvu2wqdz3KZK7GtycfjWtiWtY5fBXV+XY1aSYoGiDJyM7EcVNLxEj4Vdk03Y/wCiewKvwddtg+sGAVNwhcsKByMRljaSq7lhP9tifLMpWz3x6GuFG5foG+r1gBzJG6eIu5EBjidlhgWf7WZOw4kcqMIwEvJcVvXdyJ3IN1Op28p3oipy6G8MoI/tsw7/AGuKA/0xvx46PgeNX6eqtscALmcT9jIxXB777dVYH/pq6oXqPTPSY9VOFKkgs/T03juiqLxwpJMXDKjQJH3Ip2si5YsGUiqrPvI53CMVGPRqrzrfGeQL8ZQAeQAYKL8W1A8q+lNDyb1JT1Jtylry8JwyUGJktSbvogd3X8AWAL1ILa/0UfVvzWRFG7pNyrEBmRiFm5dke0+ExIrlRvyRLnNJdiMTfn/s1JnDby3hrkRNZLjydAq1eKZgAK/JU39dedD6q2mNaOdH0ASIsaaQggeFPt0e/qwD/FjXcLo+/s3O7P1imynq43ZxfFqQDwSpuB7VTZ2Z5hYNE9qlr5ecXldWYxjPlTvYSVQ0mSSUEv8AykuEXteKSmOaAYqADZ4j5N9UWPYH+jf+rrVLneuEClcCCWWSuKzZZCxpQoMkCMTJ3RqR0+wyt9239t9usM2kwXFttdvKKJjOFYXTxKLHKOD5FBArobVRjFKZ5JEqScjiyps6WU0yfNPImSzGkHKR0sChQ8Doa8+nnmyppcjIkaWaZy8jtVsx/gAAAeAAKAAA6AGs201q18cqoiqnCr+kVeE5X4TlUReE5/K8LwnzwvHGh/8AdP8Afj7/ANahE3qmz+mJlUTJdjcynSa2wuG0MrGqywbTS6yNYjrqks2XaMWzISYk2utZZoNOro9L9XmhrjkrAR7Lljv+ZD+oWfacpmjklWJoY3ETRrII42ZpBzPLkkjskZCwiV1Vmj9t/os/0W9MbgmyT7R/Un09jQ5mJt7bnDvGbif8hj5k2G2Xnx4sGG4w+ON+my8OFMncFE2e2BjyZMYzZZMLbe0nUNje6salbDpMnrbC2LkcR7TUFwanhTMSkJW3YJmQpBHUxCpcgs62DDkyWT5J6uWx8YRWKNLHbt5h3FYuEORG8hnU3DIYkbHPGUPPxEan3AyKpbkzIRQYEDhPXP8AS3dfREu4nJ3PZczFwY9onQx7rgJuGVj77EcvbpMXaTktn5EZwJMTLyciKA4sMeXCwldG56//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAwEBAQAAAAAAAAAAAAcJCAoBBQYDBAL/xAAyEAACAgIBAwMCBQMFAAMAAAABAgMEBQYRAAcSCBMhFDEJFSIjQTJRYRYYJEKRUnGh/8QAHAEBAAIDAQEBAAAAAAAAAAAAAAUGAwQHCAIB/8QAPBEAAgEDAwMCBQMCBAILAAAAAQIDAAQRBRIhBhMxIkEHFDJRYXGBkRUjFkKhwVLwCCQlMzRTYnKCktH/2gAMAwEAAhEDEQA/AN/jpSnSlOlKdKU6UqOu6HcfGdrtXn2TJ0r+Q/dFOjSowsxtZCWKWSvBPZKmGlDJ7T+dmbkKFZY0llKRt8SyJDFJNKwSOJSzNxn7AKPcn+AASSBWzaWsl5cJbxY3v7scAKPqOPJx9gCSf5rBpe/287JlKN3IZn8liyb2Ti8Ri6UDV6sVb9yZvqZa8krCJQoae3KyzPwsaqzCI5rJ47yOKWPtIkwftb23vMIyQzDaRtAIIPGwH35zUvc6Wln3kZHme3KGds7FTuEBEIIxk5yVB3gZJwBkS43qRz1KOLH2qOIkuyS1/psnxORYrRKrWjbpqYkimkYiNXhmARC8hgVwIxsLArMS25VyQqAqWfauGbONqAORhfUWAOMAcx72aqGZGL4UllPAjLH0ANkl8rhsELjPLVNM3e7TqGJwdu5ba3kMpThnsY3FCGzapsBFHaknrtYSSKBLDskZJcsFIJ8getcph2TcuQTjJAJGeOPI/ORgHgmsC2k77ykZ2qcb2yqFsZChiMFsew5++Kk3B7Bh9jox5HDXoL1aRUJMTgyQs6+XtWISfcgmUcho5VVgQeOR89fLKynDDH2PkEfcH3/b9KwMrISrAqwOCpBBB/IruOvyvmnSlOlKdKU6Up0pTpSnSlOlKdKVXN6le5Gywd0v9FNH7GsSYanVNWe2r1spaWCbONc+lDBRLCntkJ+q1BHUNhmSJuOsNxNAZLPTpIi/9QlZHkMblQFRmKhx6UARGGWZAXbCndjNk0iyzaz6ijgSWvOMruUNIsaHa2S25m5CqRjz4rFiHL2beWlWkLEsFamtWaklOCyi0wZZ2bEP5Rz055LDpLME+pWYRCQojfC6upwXVvcaVFo88MVnZicahaPp819eXFo6SHdpl6LuN7K6SYo7NLHdwyxqQ0WQmZ23dDDdG+TdPdSq8FwLpLWJbgbE238RheK4hMQKpg27xsw2sfeCdJ7w5Pbd52XRLIs4iXVo7LzZHYJWx1m5LGwSumIgvRrII5UcsbEsckIWF41WV/Edcx6f+It31D1FrnSs4l0l9ESYT3+ostndahLHtEX9MhuxGAkokEhmlV4k7ciqshGDe9Z6Ls9E0jTddhZNQXUnhZbWyV7m3tY5M7/npbZmYlCu0RRMsjEoSUGWGUmEuxpSs53CVS1mSXGx3bjcWrWUURrVmV5540mGP8IYHgSqlek1tJbKwmy8s0vSvnray0+G8Hcliae1gluX2yvIGUxsWlCIGCuFZXiVU3Hbgk5NAlt7i4uTZMwiZI7maK1XdFFBtKuNkJZwrupIcSl5FQKCyqcCeu12dzutbTh79KxckqZbKUqdupZP6JqN6eKvJAwQeLurSe5VLRqYZo/IEKzeW93ieyI3a5hkLkzFOI042KWUFSxb242qSCATgQt3bxyR3BZFgkiQEIGBO9QSzYJB2FRjjIJxtPAxYuPt/wCj/wAPH/71mquVz0pTpSnSlOlKdKU6Up0pTpSsafUT3Wl0Slg8JjLdmlk83YktWbtSRYpqeMpFFdRKeXie3YljVWQA+1BMPMB+D9rtWOWVuQi4HggN5JOeOFB88A8n2qQ060N1KcjKoBxg4ZmBCqcHPnzxjkVWv3Gzef2HeK+w5bZYYpLMtiaMW69rI2/aFOOP2Ya0MdOGCSzQiiSaWCxGkcTGGWNmcsYV7rUor2371zY2Onz75bJpDO92zKnckge3kjijVXWNikvzGQz/APdlXVjeLO1sE06dILS7uZo+2t32jBHbgmTakvf3yuxjkY5QwlWCq+70kV5mfI2Ngy0MGCijq+y0IlWKtMs5kX3DJLJaY+/dR29nh2iSSIIEaOQceWS2v/n9cv44Lm1ZorS2MEcUTidS0knzUryvIwn3EWyhUij7KqVYyb6S2htNNtZriGYI9xKkrSOhQBQhhjEYUCJgO8+5ncSPhvQVC1G+y4vSMtmJ8zudmarkddntRY3KxZeCvML1iukN7GXW9ta93D05WrpVqzhJmuv731Ls3h1Ub/R9H6s1jVp9TsLbOgPDZadq8M7C/k1RbfvanbSMhCSWFuktvCbd8M8xbJGyrNYarq2h2dhDpszSJqqvPdWEtuvYFiZitncxbv7kd3cFJZe4hKLGFCqcgn56r3szGw65U2DUNF238uvZX/TlnaqGPV9Gg/LLIw+TsrcsSi9fw1S+rw17P5NUrVrtICTIGOKUPWNe661hLO1trT4b9ToJLq30qfXLiztZejbGBLmGBtT7kV4888BO35ffp8S2spK3EgCBml4OktOivpku+q9FMqwzahHpyTyp1FcSSwSXEdsitCqQzFNyz4u5WuIyDFH6kFZhDZLFmSCjjDNDdx+RrxXMtYmdIaFeGMWLNyuInjb3h7YhgTzVlmdni4SInrqFyNQtpYLbTrWNo11OOO+u7yRktrHSkiee7vIFUEzSmSOO0tLfKDvTM25UhweYxx20qST3kxBksXe3trdFNxdXxcQ29vKXDBERWM9xJtZtq42lnAGTHbzvtna7VKmasVstjrF1xFLatGbLxUInEVmZrYlKT+0zrOUmVyATGj8EBZS3nW5I3iOF5FeSGJZUaQwxts7ropPG4qrFThWdRyQagb7TliY9kyN2wFlYRMIjKV3dtM8qSAxAOCdpK8VmqrK6qykMrAMpH2Kkcgj/AAQeR1kqGrnpSnSlOlKdKU6Up0pXh937i6j28ore2jKxUhKrvWpxqZ79wRce4a1SP9ZROR7k8pirRcj3JlJAOxb2s9yX7SZWNd0kjHbHGvPLueB4zjliPAPNfqqzsFUFmYhVUeWJOAB+SeKqv7obim+Z/O3KzRU7GUzFuOldyM9W5DRjmoXnhm+je9TWWDDuuJsitBbsTZNWahD9NE0luHHqUMckHyXzAUyf2oiJghklSJ3k7YJjdii/3SFG5lVeOVNW/R1az2zvEXEcYeWNYnY8yKoDuEdQZWDxAsAsf1lyVCtG+wYJchSs0ZJaOaqo9VEhS6+OsWLDxRSX8pGptLbrGaTl468FozqAsPvyhGeSl9UaIuraGtlqFlJrtqrx5hgvflbyS5kdd1x8wJoLiHtKVz2JVmcZ2sTu3WfRdXaw1V7m0mGkzMrDdJbd+2jt1Q9q37ZjaCV2IODMhiBOdoyoXp8HqGLweJzJx8+1ZRsvJcbHZDN5hL9rBUpJY2bA4awBTtw1V8efzG/PYyApyGtJkB7MQeE6c6I0jpW61OC0XqTWPm0m/p99qWrNfz6VbzSCKXRNPnLW99GgUdyO8uJZJTaZSW6QwhZZHVuqNR1yOwN2dGsVtXj+ctbKyFpHqEqqWTUryLE0EhHKNbQxrGLhgyQsHJSK8d2+lxlyXXblPFZWKw0uZgr7PGMpRyD38ctuU5DGy/WUTjcVeggWeK9LYaTJ1Tcgld/YSWL0Sw1bpLUdS6asIdPmtb68udTtfnTLdTTS3ll3pLqOFSY4bOKeFIrwXTyyT3CSzxuTJHHJLajfWWs2Vrrckl3HJbwxWMxtQkQhS3uOysXcIV2uJo3Y2/y6xpFCyIwwjsvhtbwXe7WNh2ruF3H2e5m69/H3sRquiYetBBhVSeOSnXyFmQQV3rUpffihMEUdiRoT4zsjFQKB07oXxWt9c6s6q651+51aK9s9S0zp3pXTLcrYm1uIJbeO4uiyW5jiBk3LDDBLKFz3Jj6dk3f3/Rt3YaPoWg2FnZNBd2d3qOt3dxvu1eGRJ2hjYmUSTHYSZHlRcj0pmpU7OWs1Qll1XN7lYz2UyuoYqdW2eStNUxl2LIS1W15IKskWxCebGR2LDX8tBBGZGxscTWwZWS0fC2LUunJZekuq/iZL1lrt/ounND03rxhuLzQorcy7bYXlrGkzG5tXfMeqsbpjbwOjugOYrrVdN1FYtc0fpUaLp9nqt2JNR0rdEmoGaNMXQWZWtwsc+Aos8wgPMGVCcjJrU6DVsPhsM2cOXy2NqtFcypxeOw7ZyeOxJYknWhQH0lRAWCvXqRrGfBJG4kc89gk05ZpbZo5vkzbqqKsaQJNfRxSGYBg/cKQJIcusQCliCz7torm8l4mbom1LxzMSqvNLJHZtJEIhhxsDzFF9LysWIDhU27s55aB6gtduilgdulXCZgLFCl32DHhJgwC1Y2se/YkpzNH4ebW/CuzEssyKfEWNLGea3FzDskGGMkKuDPHgn1GM4YqwG5cAthlBGc1S7iAwSEBZO2fod0IDEDkBsbSQcggHI9xWSisrAMrBlYAqykEEEAggjkEEEEEfBBBHWl/I/Xg1r1z0pTpSnSlOlKdKVXH6udS2zH7HY3eanJmNOyNTF4z3Y5i0OGlSE1XxmSqqhniq3bDNap3K3jFNZnelYlrzSJJLO2jJc6ZLp8bxpckyEpIe2tzG/BUvzhtuY8fVtGV8kiU0mSGO7ieRSduSGVQ7I2ciVATtJTyQ2B/mzxVbeC0zaslez125kK0yUJBYwFCO89KsZGRxYdqVicWQ0dUV4eQJIXRC/ueSeHXMV6b1yG51C81IzyXFll9FtnuP7EUvbdGkChwwzB24WJLbkXlgQVPXrjWtG+VsbKwWMR3oC6pcrbqZthZGRC6psGZu7MVBVlbwpByJAwmCyezQ0rmTnh16jWgqyTX7U6PcYhSzQVKoZHnKyxnxsyqkEkTxurSI4U5NKh1TqCyDzxPpEMMMMas08c08c2zZcAxKEZGiuI2EUspImTtyKChwYfUnsNGvGjhY6lO0sjbFhZIXjJVoiZSWX+5E43xoS8bh1bnFex2abKfV4ypW8LmKhWutc06Utf3xZmWCE2IoRKzWTY4eWQKIeXEhWKOMlbOGvuy4YwTSd90DQwvbkRKsYRpMs2ZmbMkhUqj7gAgCiq/2bNpgwEsSmIOVkmWTZIC7OsRKqDEqAKgYl1w3qYmow2KlJW3yGhl+4NKns2ewzRYbSKGAbJXKGLxxmsNczOWjvIcbj7tkIbNh6caCSNBHJaFdo15XrMttY9XWmnX/AFNBb9YdQ6fc/wBD6ftNNlvbmLTdOjmuXu9SuIW36dp0knBvbpYYHk2xx94xlavmnzCXp+SS10Ga40DS72N9T1ee9S2hnvrtkgFvZW8iFby6ji4SCJzIqlmfthwa++JOx7b2m17ZcDhrOUym3tPDn5Z713WM1rWvQyz+3SwVXK1qV53sWKlerM6nHS3qlizkYZ7NdqkBi20vqjWOiLW5trG7v9Y6hnlh6kmTVZNJ1PQtKjZnFjoryLFMzs0UMU0kMtvcXEM81wkxBhiXP83omm9VXNpdXUFrpujxpPpEZslv7LU9QkjVDdajs3R7U7krqrJMkEsaxFFYOx+mldu9niu2MnDqqY0j3Hje9kK8duZpA3uTPK9iQlvH5Z3dXk+Q0ojVj1r9J9G6rpV9NeWfSdvpMYZmM9xcRi/uWdSJJp7ye5nlkzg9xw6ST5w8gTOdjXNf0i6t4refXJb0sNpS3gka1iA27I4YI4I1Rc5CjYVTyke4gjt5d43fCWLtbV8Hhsnt+OVa9XH5/IR4rH1KliWSKS61yrj8vcNayyNGprQOt10aBbEHizpdzqfUHfdtO0a2uNUgie1ge/aOK3WNpMlY54UmmFtM213MeVkwpBPBWLGh6E1vC19qdxFp1w6zsbJZZZXkVSEDpJJFGJkTKgPh4uQRg4Mk9rMZ3U36/jK+wa9hY9nuz3BJU16d2qWq/AkRp5rcFbwgqD3ZJbMwKwwIPFWLqiXzpReo1s4b7qwafp96k8zlNO7qxywEKI4VjlzK/G4EsSWUK425XFP6nk0C1FzZ6FLd3to0UKh70KxgnAzJIroxCs5KkKMEHcu445uK0jCXdb1LX8Fkbv5hexeLrU7NoFyjyRKeUiMhLtDACK8DPwzQxIzAE8DZuZVnnmlRdiySMyrxkAnyQAAGPlgPDEjnzXPq9T1hpTpSnSlOlKdKV43uHrVHcdG23V8jWS3UzuvZfHSQPyAzz0phA6spVklhsrDPDIjK8c0UcisGUHr9Hke3I8ef59v1rYtZmt7m3nQlWimjkBH/AKWBIx7gjII8MCQeCa1jcfsGcxt29iq+1pUwWLje9bq5GGHIWqYlgSyklR7ySyPTlse7BPDI/uULiPAfcR4JG0p7/VXuJo11bNvGCZluEim2RrHlGxKgDISDGz5EiOdrEjaT2v5PShDBLLopN3cNsjkt2ltu6WkZZAxgKgOi4kUBSsyEMCpDgdVku/OfxCwX4Gwexa+/lBBlHXKU/p7Qfymx+Rgr3pUpuCAySfS+y4CSeMYPKwd71Hc2zBlsLC9hIEYk7U1ozEMGMbdmVlOzBdAFBckN4yRJWXTdjdqyfM3thcD+4YQ9vdHYRtWZO9EhIYAqTuDKCVJ4rsKnrZt11Sp/p16X0wlTyrZS2tZk8eZI45bNMSeMnBACzOW5HgwP6gj69hiQhtD27wA3ZuTlgeAd0sQkDEknIO4MeDwDWtc/DuOaQkauxAIbM1shGc7h6IZtjAHHGB7gjkioSod9NZr5m1mamL2WGzdyUmWyoXa7U1jLzct7UeWydhGyN6nTLj6atZllr11jiRIhHGoNNsZek9Mnu7mHRtSWbUb432oTSau9xeanNvLRRajqNx3L29toWwLeyuJXtYI40ijhVF2VY5tB1e8t4bd76wMVrbC2tVi00QxWSgeuS0s4itvbzSKG7s0aLLJliXz6qnTDesTIyw0MVBiMpm77ItaCaTMSXcrIzP8AsxGSPF2JbTKAPAOjFFIRSAD1aoOuY9ogi0q8nk2iNHkvVedwCSuTHblpHGcA4JC8ADGKgpvh3Hl55NStraEbpGRbRkgjyu1j67hVjGeTyuSMnJ8zjX7rbXHQW9t1GthaspSEUbmSmu2FNhX8UyEdaKlUgeWMMFqyrJK6iQyRp8B5GfWZlhZtS0q0ihk9EsFzPNfbVdSVS4hjCQx7gGzHLuLAHKhcVFwdN2UknZ0rULm4njzIk9vDBaLmNgrPbyyl5nCMQe6hVQxGCSOPwpvUmU2NKmvXsfUqRU4Es3amPrqtVIx5zV60qxytNFExEdeJZVEtlmKhQrOI7+vzh47fTDZ2NqkMag2ljBbiDAI7MRVZG2xrhY9gXJ44HNTCdOwpYtNqcV3d3Bnl2x3N5LL3ST6HlVzGodyu+QEMFQqANxq0L0Y0aGQv7fnYoZJ5cbjcNioshckksW2fJS2rt0NK7FA7ipXjlEKohESqv7fHNispTOGmcyyO2A0s0jSSSE5ZsliVXBP0xhU+y8CuYdXK9slnaHtxq0lxL2bdFigUR7I02KqqWzucgyFnGcsdxNZ+9b1UinSlOlKdKU6Up0pXBAIIPHH88gEcfyDz8cEcg/4PSlatHfzWoO2/fHf8fBWr5OPX9v2CnBUtk147daSxLYqNNFGT5RGtaibwHkpZTyOCOoK/2w3ouXhjlQMHMT8RyMUDYYLzt5Y4IIJBJFd+0aR9S0G0XuvbyS2cQ7qeuSNlGHMTNgBsoRlcMobGfc4ad1M4mbnnXGY5cBRt1a63sZW8DUtXIARJYCBEPJ4RUJ4IVFBBPI6r+t3sGoSBooEt4gqExJhVMqjHd4wScHCsTkLwcZNT+kWU9hERPcPeTBpAlxKvr7TkEJn3/Oc5bkHPjGS3HkYJ5hFPbhVEjaNo7kvLg+YkBhBURIgCEMzv7hcn9sR8tAOPBDMTkggg+nn04bOOfsBx96lgW5yqjBXB3DJLEkkr5ByOR+/jIH6MVkLc8ssD5i3JLA3tzJHcZnjMsYlSOdUcvG0kLo4WT5eMhgGU89Y2IAQsMhhuQsNysFYgkE53bSME+x/NfuTuIRz6cBwGJwTk4O0kjI5Htjx5FSvrFnJRW1AtXY/ajjeG0trxlKuXSSGPxeOynteMaySOVikEwSNyY3C/YA9PqIZSw48oRjG0gZydx4DE4zjAPP6shcPnDBlH1epWwT9SnIOOPqHuOOKyP1iGaYKJpZJFch+ZHeQO45BcliT7nB4YOWYBeAfH4621jjUN7ZAzxyxAPk+7fuSRk8YNfIeQjaRypIULg4B9gBxg+DgAA+eayN03HhZ0EYbkj5fjjg/9VXyAPHB5AUE+J/v1nt4wZECDIJBOPvgHBzwef2ORWrdzFYT3MBck4OT4OTxk48AZz5/Ti8r0aa7Fie11jL8sbGxZy5LJzx4pBilTH1lU8csWYWZXYn4aTxAHj1ftPjMdsgJ5PJ4xj2HsMnHJP54rgXWN0bjVjHjC28SqPyZCZGOPbIZRj8Z96y563aqdOlKdKU6Up0pTpSuD8gj+4PSla4Pr9waUPUX3HUAFMhJgMuysOApyGv41mdOPg+bRMzHny4ZwPgnqG1ZRuVgeGjj3c8ZVm5AGQTtABz7Nnz57j0TKZNCtM5/tPPGf0SVioJ9uCfH2B4IFVlbFXeKSYQzPwpKhW4lTxIJ8R7nmOfgDjkABvEkffqn3CoGY9tDgZ8AbgScHgAAnA4x4481fItwUEO4HDYJGRz9j7+ePvmocyBsRT3JSmPZWE3i8lZQyCOtXhrpI6SLJIHkjsWZfAgCWRQ6FYyW0naHaP7YztUMA7c4YnKqMADHpIOeASDyDWMLMjMyvnksuQgbAwDljzjG4nBHJwcnx1tZF94TpUpI/to/uxkxyS+1XlUPYZX/5E8RbyT5MQEcKoAvuFcfbhOApfAz6d5KLu5ZVBOAD9wM5GckivsyXAJbK8YJxtDYAC7iQAWbkgcEc4xjOJP1m2P2rDw10knEbiNo3VoF8gRXUiQlyUIl/cclXJHwA3l8bIgPBUKG4WSQtKwyNz5ZgWAGAQADhcg81nWS5KqVCNnB5WMbVzkBQAuQfPIPPjzWRmrzh1Twl+QVRgFCICoVxwqooPkpHLMP6SR/V8jKhQeAGbBB3kvgkFQ2C20MAThsEoR6TkcZ27nIJwuQcoNhOCGwWGWxn6l3YbkNwayq0eJZPBxy7AoPLl2ZmJAbkuS3H9+GIC/IA+3UrZpuPBJIYAHPP74GeT74PIOeOKg9RO1SfAwTjwOd3gADgfoP0NX4+myl9D2U0ZSAGs0bt9vjg/wDOy1+wpP8AfmN04P8AIA6vtuNsEQ5+hc5Oecc/tnwPavPXUEnc1m/bPAlCD8BI0THP2xU59ZqhqdKU6Up0pTpSnSlOlKoR/Esw61O+Md4RjnNaNr9xieP1NUmyuM8x8Elo0qIrDg8qR/nmL1VFaKM5yQGAHOcg5HPGfJ4z7+ft2D4fyk6XKm44ivHAA+7xxsB++SQTwGxx5qiz1Kd2Mb2Z7f5jdshXW2taWDHY+gtuOrPdyV8yLA8bSpKXhpKkuQupDFJP9FWnZI2ZQBB6TpUuu6jHZIyqo3tI5VmWOOMb2ZimSoYKQhIIyRkjHM71n1ZbdHaBc6xcxtMwaOCC3V1ikkuJiY41UuMNsYiRwvq7atgGqLT60/Uh3OydnXdQv4jGS16GRy1u/Vp4nDIuLxkYsZDKSy2KeQvAoGVlpURPelV1iggkk8z106DofQFk4tpLgkE5ubkqgVAMnbGiNj3C5ZvYAmvLU/xk68vwywX1raFFdnNpZxBwM4zvlMpJXIHpUjJ8AYx/Wi94u8W17LV1y56opNdz2Qkl+jhsaptUGIMsSF5Gs5bP2NbpQQ+KkctAhlIIgiclQ28vSfTme21hapkAjEVxt4BJJeWaPIHH4PgE1pQfEDra7lEf+LbyOViQisI+27EH0ue0qIpOR6gQMYPivdzeqv1Z9jbj198y2sZ6WtnshrcuNtW8DksnWuUa1fIxWLUGOT62nSyuLtVclhbcli3FbpTKS48olOnd9CaG65Nq1swfYDbXLBj6dyl0kEmEZDleSME5/O3a/GHr/RpTFdX9vfOjvFJDeW0EjIYypyTbmFlDblKNk7wMqfObhvQv6o6PqE1+3UydGCpuuu14LGcjiEVfH3Ybt25DXlxVPz+q4pJHWgyTyAxpanrvFOy2lReddUdNf0CWKa3ImsrxisBkDNJFIiKGSchVQsx3NHt4ZRnaMGvQnwv+I3+OLSe2vo/ltZ05FlvBCVS2uIp5ZRFLaxmR5gsaqqzq4IV2GGIYVbtoLcV68hBYgliOCpUL+rljwCCOP548SP5446iNPDb0Dbsq+MYx+Tg8+cFfGcg4x7X7VAGVwMBdoIB9WQf9C2SG4OOcN7gbC/aXHjF9sdCpccGLU8GxH9jPQhskH/PMx554PP3APV6QbVUYIwBkHOQffOefP8V501KTvaheyYwGup8efAkZR5/AH+1SH19VpU6Up0pTpSnSlOlKdKVSr+KdjWi3HtrmEjHjc1DNY5n5IDSY7NRTxoeCCf0ZJ/j7cE/B546i9WX/AKujZAIdvP32grnHOCQfHPnkcV1X4cuDBqMROMTwuSPIDxOvH67PtxWnb+Kps2vZjGabo2PzYi3LDX72YyOuzzHGxNhs3SrRUcn9VeFTG2IppqNmmksFuRoXS5WnWJ2ZTO9B28u7ULoxosU8KwrMXTd3IpwzxqCdyhgSTuxkeDg4HOP+kBfWkqaJpa3Mnz9ncy3MtntcIba5tgsFwzMAkhMibEZGbY25WRTyaaNPxO16/sdPYMdWwc9qiXmghu5DWs7SsFgsbxWK1bK2pYwyHyWZa0rLIAjIYpHDdD2SBwQEJDEkloivORg+okZ5IIz4yDgZrznbxyRuGReQMgEBgeQQMZYckAEMuM8EE1K+U0zHbzs1retkwGP1+W9kFyGW0/AZFZtZyUqiNnSgK1XJZbXsXeaIrcxtWpfeqZZoMX9IhjeA0SysXlVFckb1jZSrgD8gmMN5KqpXJO0KMAbksJlfvNGsSuxkkjRiVyTlghO4opHG1s7ckDPg+c32nu28bjmNrylLIXr+WuNat27MeOwGLqrHFDWrUcJi7OWnsUcXj6NarSrG9aNpq1eJpokfyL/Uiu7MeCc8gFEAAwoSNGckIowASxZtp9Pk1q3HeeaSeTLNN6ixAXBbgfbAC+gAgekLnkGs3fw9dkxnazv7gs/uuz4/T8HHjc5Wlsy5vE2ILVu9irlSrj5a2Pv3LEhvW2qRwRR1ZZJrUNNY0LKrLX+rbK5uun54rWHvzia1kiVShePtuWkmXLYGxB6ixGVY8nFXj4S6nZaN11pd5qN38hYC21GGaZ89qd5oTHBbS7QSyyzY2AKxEiKFAPNbc+hCeajByC7WfAksrJI5nCCPyVlRlZvMAqVBDnhgpBXri1kjAqjcFpeecHOR5IJ4AJHGAeSCRXtvUJE+tAQqwggHIG3GS2CARgAZBAIHB5rZEwFMY7B4fHgcCjisdTAH2Aq0oIAB/ge3x9z1exwAPtXmyZ+5NLJ/5kkj/wD2Yt/vXb9Kx06Up0pTpSnSlOlKdKVU/wDioYtZNV7VZkLwauY2rGu4A+Rbx2LuxKeeeeDj5mAII+SeOR1pagoa2JIztcfbABVsnB98D8mui/DqQi91CLP1wQuF/wDbIykgZGSBIP0GfvxqjerX0/7f3ay+Hzmj5/VtdyVTWspq+Ss7Djr2QeWtZzeOzNGemtaGaASVGr5GA/WQyGJMnPNVMc8cbj56a6ng6dS9SaKaVLoxhWi2MYioG5jFI2Gc4wMcYyWy2K2fiT8O77rS40u70+6tLWayt57eY3SSZlVp0liCtGrjYmGBDjOW4YDiqQ+80mWw2VzeobXrseu5KDMuiXYsFk4qL38fs+05GBalqCjL9ZjbUG0XMdLYCwtkKFbF3DajaEKOsQapaanbx3FtKjxzIsihCC8ZaRpFWQDdsK72Rw2GIYEke/lHWtJv9HvLrT9Ss3tZbWd4C0kTrHKYXZC8DMgWZJFxtKZDKFYDmon+vwyb9jttmgxSVqd21KdUGJz8OEj9/FS44Y/Eg6jYgqY+tOr24a8qXPERLEZHlSS5Jkbb345WGCpA2BSE4ULtX0EIuVyFJb7ccEw5aFXLhkCEMdpViUDbg3+TBVS2FOACcZB813+q5SDFHFYjXqGNfL08dhIKMkOu5fLWzdwWWyOUh2RKVnWYoZc1lZrK0M+05etexNSakIIq8wNXIrpAo3bY1UfW4UBcM8glYkBBIGJDZOGQEYwSKwoom2LbAySEoqhYZJZXkTBwiFcsW4DjBXknnHFx3pp9Hm87Hle1PdLL4nt9rWswbdht8OsK2zQZaLE1s5+eV6T4iaF6v1RFSjSxcGat2UxWAq0aEVaraE00lE6h63035XUtKtEkkuJEmtFuYdvy6uwAfae5lghygIBXZhV8bq7t0H8HtduL7pzqbUBp9tp6Xlrq76fOLgXvyyTGZUePs9tJWG1kjkfIXaJNrcDZE7TV3yey65QZC0l3OYWBhwrkm1k6cJHmDwSQ7njkEHy5+5PXMdNJe5TcDjegI2gjIxgcAgDwcY++APFemNdYQWN3KMHbDM3vkhI2djggH8HjH44FbHa8AAAAAcgAfYAHgD/wdXivN9c9KU6Up0pTpSnSlOlKdKVXP+Jni0s9iMJlCvk2J7g4nj+eFyeHzVAjgD7FinPz9wP7jrVvf/CzePpB59sHHH55/wBqu3QUhTW2QcCW0mBPv6Xjbjg58EY+35ArW32VX9xx88AEn9PDEgknngkfYH4HA+5/6nmhXg9W1SQck5/B/bznxx+Peu+Q8oGPB5H4/X9fz5I4NYJ+oChu2arZXBVe0Ws91Nfu06KYypmrtWolO4xf6+a5LPZTIwmCTxMH5UtR/YjVo7stiYwR7ulT29vJHK2rXGmTIzb3jDEsuRtVdq7DuHJ7mdwDD2FUDrC21W9S5tI+l7DqOyliRYY7qSKMQyYzK7uzCZGU5CC3KHb6g5Y7RhOfTNp+Ro5+5J6UN1x+yYzER3sfUffqtjBZnJJkq9WxjcdLHYuZCCM05LORqpO/k8UKQF/Ji4s69TXqTQj/ABFZSwyv23drFO7FHsLh5A6KhYN/bOB9XOQOK5Y3w70qe3unPw81m2vILb5iKCPVs21zL3o45IYGjkkmA2s80YYk7VVRknNZX9p9IzPajLRxdsvTFh4q+Qr4uwuwWtnx1XN0Gkx2OsZLGZnJZe3kbr3qd+3ZpPHiDTpM1N5SbCgFYPUb/wDrCr/Uuo5CYmlC26wv8vJsdhG0aQqibXVQ+5wWO7GQKu2haJP0pcf9g/DyAieG2f56S7gF7CWhjknhuLi6M0heOZ5I9tsUjJRjhvNW0ac7o0SyPEZfbDs7FjxIEUuhPBLS+Y8VPB4bk/Ct1VgyqxQFRgEhiCQMZIAIH1H3+x+9dnKtIiM6MS23cgJH1bSxJB5VTnjywz4rPv0wUxku6/bekw8ll3LAzSjnyDLWsrdkH2Hz4VmLD7Acnj46sOjHdcwqf+LcfsSFJx+cnBPPPJ5ql9YN2tH1KQYyLSaJCPPr9A3eRg5wCc+f1xsIj7fH8/P/AL89XevO1c9KU6Up0pTpSnSlOlKdKViN65dKsbv6aO4tem0a3NdqUtzg90+KNHq9tMjfXzAPi5xYvGHkeJmCKxCsxGvdIZLeVV8lSfGfHJ/0Ht+lWPpO8Wy16wkfOyWRrVyPb5lGiQnkcCRkJPsATg4rVV2d+PNvgKf1pICGVwT5IwI8gUK/PPl5ckkfAPVBueSeV3DOTnO7x7DwRuwRzjBJr0XDuIXAIUcMpA+3HPOQDuOffx7CohyMqSSs3j48MOEJJ/8Aiflj8kEADgAAAA8gdRsmGwdoJHOMnz4PPk8f85rZClcjcW54YBRkHHgEFR5weD+pPNdTGQHJAJHBQ8DgAEcFuSQDxxyR8+LD+k/brTk+5zxyT7DJxyfyce/NZkA87dvBHJ9XnOSeRgnnH8YqQMBGyLEvPulQpEhI8uOB4tyVHLDjhvFV54BA+OAUEAYORgt4zjOTwTnPnIA9vsPGQY9+BnAwB+544UA+TU+auP1Qn5JHj/ADc+XHx9ieODwP/vgAcHrOGTzgjHj6hnHPgk4555496yjwRuBHOMeFB4A/gZz/APlWmehLWJ9l7yYO1HJGsGo0b+z3Q/DO8aVjiqsSKo+JJb2ThcFyvEUczqGKhWtPTyb7jcCMRoW55wW4+/1EMRn22njxXMPiHci20d4yGzdyx2yDwuVYyuzZxnCRceeWX84vPA4AH9hx1dK4RTpSnSlOlKdKU6Up0pTpSvJ75r8W26RuGqzyPFDsurbBgZZYoxNLFHl8RcoNLHEfiWSIWPcjjPw7qq/z0xkEZxkEZ+2RjP8ArWe1lNvdW1wACYJ4ZgCcAmKRXAJHIBKjJHtWk/tcV3HXrtGjcMc1OaSGxUkVZIg8Urxs8lKXlq6uI3LMPBfk8P5oSOb38bQ3Lo/DBsbgDgqWJVgTjKkAZJ45/n1PaSiSFJVbcrhW24zsyFJTHPjd98kc+DxEl7YJopX+rx1eY/0l6s7QFgPgn23R1B+fhef7HnjkdRTvtJ2uORxnwPAB5zyfq54/23hg+UPjIKttPJJGQR/yB4xXwg2ClK6n8uuIw8uR9RCVP2/VyUJ/TyADwvj8/cfI1H3EclT7YxkNyPPOc/rgfxk5V255DY+xOft4x7effn/SpIwWZB9r2qACswUPLZLAkfb+iMA/b+CPjy5PwePwtKqggqFzgZ+3PGPx7c4481kQIxAw+cfTn85J4yASPf398cVPusW55FX3HWJeVPFdRHGi+QDGSeQs3BHIJUr/AAeeTx19KzFWMhLDA+kbQAT7kHn2wc8efasoXGQq4Hn1Dcx4PAOABzjjn3q8L8MnBV5H7mbKBIktWnrmDgBjb25Ib0uQyU8olfh3cmjWUHk+cRV+SpQm/dMxYjnkIKnKRgEFeCN5OCAcHK4J58/fNcU+Kl0S+l2gIZW79yxBBww2xKOOBhS2fGCdvtmrZ+rTXIKdKU6Up0pTpSnSlOlKdKUPz0pVR/q7/Cq0zvrmctvnanZq/bLeMxYmyGWxWQx897SczlZ5DLYyMP5XLVzmp370rSS5CfEPexVqeR7UmCFmSeWaHvtJS6y0bKjNyySJvjPH+XBDRE+SUJB/4fer7oHXV3pccdrfQm9tolCRSJJ2ruJAAAm8gpMigBUWRQyAYEm0BRTJ3H/Cr9euqT2Fwmg4buBSrsVjuanu2pZyK0sYcCZaW3T6fnoiwPCrIkkn3Aj8iQKtd9O3ZYGO3GBwexOpHg4ysu1ueM/UBxj89BsviFoMoHevJ4GwTsubRztP27kAlQ5PnkDA5A81An+yL150LMUEvpa7iyuHVJ5otWp2ovEfdopKGxTVvIEchllZWB4LEHnrTk0C5C4jt75TkE5WN1J8+z/sCMYP4qTTrPQmI36pp5XOeTMjAY+3bHP4IPPvU2aN6BvXVn5YIP8Ab5tWFSQ8yWc3c0PWKsUjEcPI2Y2eW8qJ/PhRmbg8+PwR18L07fSYDW1yeDnuNBGN3gEjuMcecYBP3Ffr9edOQBi2p27EeBDBdTsy/wDxixk+CC2BjGR5qyjsd+FV3Ynkp3+8O4arqVAOJZ8Xr88287L4j+utFctVMVquLLAsFsRQZ0I/7og5Hg05Y9MNGAZ+zH78lrmRQPYbgkSMMkBsSD3xnNVjVvihaYZNMtbm5fbgSTN8pbhj/nEaNJcSYPJDPCeSAfBq6rtZ2o0vs7qtfUtIxr0sekhtXbdudruWzGReOOKbJ5fISBZLl2WOKOMELFXrwRx1adetVijhW3QW8dvGI4wcZLMzHLMx4LMfvjAGMAAAAADFck1PVLzVrpru9kDyEbUVVCRRRglhHFGOEQFifdmYlnZmJYyR1mqPrhiQCRwT/AJ4HJ+ByQDwOfueDwPng8cdD/NP18e/6VhEvqm3/DSbVU2XsbuV6zjchmFwNrWsZkFw1vGVsjHjsTLdt5RDk5JLgu47K25qOHLV8L+b3YcdPJjIK+Sqx1+8h+YWfSbpmjklWJoY3ETRrII42ZpBvO7ckjskZCwiV1Vmj7b+iz8FumNQTRJ9I+JPT1tDeWmntqcOsXtp/ULe8ms2u7+O1gs3FnttvlruzhS51BRNftYW8lzGL2WSylvtJ6htb7q1sKtPCbPjchlpdjqOs2AzE2HpXNSsDG5uC5sIox4mpKMzBk8bRp2bKX7M+Lto9aKVDGJHTtZh1FYtkNxG8hnU5hkMSNbnbKHn2iNT3AyKpbczIRgMCBROufhbqvREuom51PRby1sY9InQx6rYJqF1b67EbvTpLXSTctf3EZsJLS7ubiKA2sMd3CwldG31/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAwEBAQAAAAAAAAAAAAgJBQcEBgoDAQL/xAAyEAACAgEEAgEDAgUEAgMAAAACAwEEBQAGERIHEwgUISIJMRUWIzJBJFFhcUKhFyWR/8QAHgEBAAEEAwEBAAAAAAAAAAAAAAcEBQYIAQMJAgr/xAA3EQACAgEEAQMDAgQGAgEFAAABAgMEEQAFBhIhBxMxFCJBCFEVFjJhIyRCgZGhUnEJM2Jy0fD/2gAMAwEAAhEDEQA/APfxppppppppppppppppprXPkDfMbOVQAFJN2QmxEOafI1grwqSMkj+RSXtjrJSK44mSmf2ntijVySxIUY+MeST+5GAB+fjxr7jQyN1X58f9/t8+fwB+T8Z861NkvIrcrFSwF76oBP1kuj6eE9piIJq1zLIEy/GTntxxH2EeZj6keGupJGQQSSv3/wC5wcjPwp+P7gedVUdQt2Vh0YAkFz1Bx+FyPLAeSvz+2dbDr78GoFW5kGyuhUrLruSEATnWCWICczMRJGbB5EBkRGO3MlMTOvmRUjUF2Cs58H5Clj4UfjP485yRkeNdKwl8hAWbyf2woPk/+seT48fjPzrv23dwU9x0Iu1ZgZgyW1XbtKyEpiJguB7AYxBCXWPv2GYggKI6zj/SwYfhh+4+QceAQfBH/wC8a6nRo2KuCCMfP7HyD/6//vjWe1xr50000000000000000000000000001wMrfXi8ddyDeJCpXY7rPMdzGOFr+335YyQXH/JRrlQWZVAySQP+T5P+3yf7aag/uTdWdw+RuZa/jq1tdw4svs5dopoG2SmBTWumUqqFMyAJhoyqYgV8QQ8QtW/pO0axd2WIyJ7zrXgbr/Uj2WBjhZ/HVpAUyfOcY1eqtNJ41xKYz29siFPel+/yG9kYeYA5yqEOBkKQPJwt3f6LeRpI2/jq9vK2RH/6+v0YbWSHdyZsVw9PRMiRMsdxUEDJezmYErbuG5wqqR14/ety+I66YaV2CFioI+0dPuLSFxH1U9WIIzX0NslYPJadoq0Zy9lwwRAW6hupyxDjIWMAyZIGB1JHD3J5bxWBx0YrdeFydbPAtLF0fprc1rL4EvWarK1fR2V8yQlKbUz2A+QA+RjH7nNNphtRbbuNPcq+8FY5BQNSw8Ejt8SRXFQVZo8kjKTFlPZWAIObvT4huM8b3truUbG1F5Ea2LEJeNFYZjlru4nicAZPaMKV6nsy/GwvFnk/KLt4O5uAa2GoZAxxrUWTVj1Gq0HekaBsdB91cw7MWJR2XDJ4HmdXe3vVfbxtTXpqlKLcp2qRizZirqJzGZoo4DMVDyOqsBCr+42CVU4IFuXYZL6brHSE9uxt0K2gsEMk7vEr9J/cEQYqB2Uq+AASoY/GZlot1bI961hFgP37oatw8f4nsojjif8AfnV4V1dQysrKf9SkMv8Af7hkf96xN45IiVkR42HyrqUYfj4YA/8AWuRExP7TE/8AX31yCCMg5B/OvjTXOmmmmmmmmmmmmmmmmmmmuDkcjUxVRt264EpUPPJTEEZz/YpY/ubGFwIAPMzM/wCIiZjlQWYKoyTj9/ycZ8A6ajluzcmRyAlZd7JQ20sPVBHKcdWIokWQAQUESygIM5Ce35EUwP7c2JjRMDiIyRmdIpXz19tHypmYgEBVYgEHA8/1ADVxqVVsGRe4R44nkUHBMzL5EaAlcFh4BBY9h18ltaW3bvzG0308Bk8HkG0szJUl5sqtTIYurfZHWuq7UsdoJTjkQ4aJCffrEduxDiXI+W06G57Ts13a9wapv038Mh3sV6dnaat6wCtevuEMsyzGGw5VVlWJomd1U4AYrke0cdt26lzdKl2qs+1RfXSbYJp4dwmqw/fLLVljUqskYV2ZcrIFRvB8BtI/zXMVbm38FuyfDu4TvrbVyoUUZPY2e9Lf6lJoZdNtu1yvDELspqWqwrKRfQfJhAaxfcbV+tC21Vd+PB7zWo3rbkasO5ca3FIpVMlVF3JZhsrWYwYp4RYhRGb3aUjlCmsjrVYJ5F3G1tH82UjXZLFRZ5ae+UXdMpMfomiXdVhY94pjDKzqDHYVUJIymHyG/wCpYIdz7p2tmr1cCfRoYbP4bMXMmf5GtlSkLkueQjxCktqDZfx1Ws2zMTX095vxSmrf5Bs+53FjmlrUal7Zrm42Pud1etTisRyzGFSq/bVSSdVBAZzhqefbtrlVJaW27hRrvIkc1qxU3GpUr/0oyT2jFJHEsjeGb3iik5LBQAIL/KTe3krMZ/be5r2cmz469TaeHpU6g0AxG4orxN1eTTX6hYffSkrFK48pelSrePhapplLfLD/AOQSH1H3R+J8gs8in3T07llevstOhAu1x7JyNIVe4NyiqORZv3YoZJ9uuyOXhgjtUUSFoHab0E/Sht3p5/B+R8dq7EKPP4WhtbvYuWX3A7tsDSstWXbJpwHrwU5JVhu04lCNJLXsvJL74EOtti+Yd/YWwk9v7nz2LOC/pzRyt9ECX25IRU+An/b+yf8Abj7xGvPjZPVv1c4KR/K3qTzTaArgpXr79flgDZGOlWxNNApJwMKn3NgYycGduWemnC9yhl/jGw7PdHRg7WaFV2KlSMPI8RI+35btlQMggADXok+Pi9/x4p2ta8lZO7k905OqeUslkQWF6lUvH7sfQtytapOyip62Olwe9bHShhTKY1+ij9OMXqUvo5wqx6t7ta3fnO5bad23WW5Xhr26kW4yfUbft9tIEjVrdSi0Iss6CUTySRyZaPA8dvVF+KHnW/RcKpQ0uPVLIpVFrSSPVsS1R7Vu1XEjyFIJrIkEIRvbaONZFAEmt16nLUf6aaaaaaaaaaaaaaai18pvkbPx62nTyeO28vc24Mv9YVClZuso4+pWx81vq719iFssuWBWlAurX9Run28vVAcFAn6hPWex6LcJsch2zjh5VvHSWWrtTXDRrpWrNCtu/bmWKaZq9RZ0kaGCP3JgGAkjA76mv0Q9IG9XORTbbZ3c7JtVEVvrLkVdbNqWW28i16tWOR44keQwv2mlLJEOp9uQnAqg2p8y/kT5z8pYDCrrrt4JGUqW9wYbZu36SV4bagW1xlclYyuVZcOgmug5Jt29fWLTAKy+TYCS0F9Iv1c/qV9XPVTje0bdtFFuMPvNKzyXaeJccrM9HjYtRxbhbsbzu01qatDXhkLmxNYrq8gEMIMkojbdrnv6ZvRH0t9O963ncbbx7y22W62xbhynebTfxDkBqu9KnX2/b1gSzLM6jrBXqyPGpNiRgkbHUr93eU6mOzmHAs3czC22lswicYVStcsIgyBsWMWQQ2yDOogTQWNhoH3SEiJiHojzX1W43xjlmw8c3PkwrX96KX9ho1ZNs93fIYZRDaqfQSg25lftkyqEmcNmpG3VsaU8V9Ot13rZtzvw7VDAlQTVtym3Bbqx0ZCglimhueIEdCwxGWeNFj/zLIWUtkafkHAb7RkX41dvbe4cO8a1nG5AkXKmQSUSaGMgQCJiTCeD6Q6syIhi2iQ8XzYuUUucrub7Mr7ZuOy2o4L21bpHXtUryyj3K8rBCWQFkPSxGI7FWZcSwt4Y0G+cUvcNkoruckW6bdulVpau5ba81a1TkQhZog7th3CspeJi8FiNgUlQ+NYWtv3Z9ana23nsNtjb25y7nRTu2bC9sZ0ZOfY2rklDZhpRH3lQ94HniwqqP7dG5cprUtut7XPV2TZd+VT7NDl9qevsF+ME95Ku5xpKlhSBkQnMgOBMIgew6qvG7li7W3Grb3XddoYgS2uPQxSbxSJwQs9GRoDG4YgGQHqT5jaQ+Dr9e4NvXs/Wxi8749xd2maXUsHtvH0F4m3kycP0ne/XoU7dk1O6M9Va8DILoRGY9oiDaPq36VNyetxiXnHpdtPLjbqVquy7RU2+Xbre/XJ0jox/xKvTgs2LcUvX24q25wukjRmV8N11JO5cC5fW2V93HHuX3NnkWYzX9zty/wARgoxxFpz9DJPLHBFLF2DST1HVlDdFBCkdm8oeK9v+YNsbqwaAHbuW3Ca8oq31F+ETuuk2LNbLdE/16IWjltPLxXBirCbT7UKG1BS3O/Wr0d231f4JyrilSaDaru8e3udCWxmSjS5PQkM1LckMQMlZJ2aajuIiR1kq2ppQnu9/cs3pX6obh6W8w47yOeObc6m1rLQuxxEx3LHH7cfs26Enf7LLRKIrW3l3DRWK6R9jFgLhvhz8UcFtXJq3x5phCshiMlKtt7XsQNnElepyRrzOVtiJ1L9YZFbcTUWXoJohYvcl6autNv0s/oYm4/yFfUP1tpVZN32PdZP5U4Wzx3KCW6UrGPkW7zANX3Fe6rZ2ajCzQJiO1e9yUR145r/Ud+pd+TVBxj04tsNp3Oiku8b9CxiuPXsovbaa0IIlouATHuEsgEzKfYrkRmSV7jwIDATXIksxgwIZiRITjtBDMfaYKJ7RMfvzz/nXqcBj/v8A5Pk/8nWhOMfjH+2Nf1rnTTTTTTTTTTTTTTTTUQfmt43p7/8ADGYsxKwz22oPIYCCiJO+20MVbuGAe4mc368i1YhyQ2KaWfYBZMQ3658CHPeA71Sr1ja3Snt+4TbfXWL3WtiWq8VqgVBDEWoyvTqe3vxwkf2nH9PnPP5G9RdqktzJFsu8yw7bu0kjiNKq+57lW/2PgNUnGG7EKYJZhkZzqpLxRtzJeBPE2V37ksUO2997ws5LEX1bkUM2LG2k2RHD4atjHflXG09bMrfghgrqAQ1hemqnWlPo9x6h+mP9PPIvUXlm3w8a9Q+Stf26aryhWjsjbILDQ7PsSbfIySIbckUm5W1jAazEK/utiOPW4fqjyGL119Zdh4PtW6Sb7wHjFWnuMU/H5Uasu8zwdtz3WfcIgUkeENFttIHsIJXmWJW92RzFTenkizmNzMyisjNWwFgHp4ayJrEgxOsqgQn3r/TkIlUgDWSpgQE+kTrzF5vz7d+c8zu8wk+sqyG7DJs0iWbMtjaq9F1bb2pSSyGWkakie/VSF1asWWBXwCdbccV4JS2bYY9qkqxzwGvJBJH7cQSwJgRZe52jKWTYBK2PcVxKe0jAtjUv/Fvm/a29scEb3zaNv7vxUo77ntLP37tpiwV/R5CMdVcx+biTgEkFZ02h9RwcuCxLfS79MH6reP7+k+0epO7wbJzfa60UcfJ9wjIbn+0JKFRLw2+q8kvKqbkFUjqym5XKyBmlSdm0z9afQXe9nLS8U2yXd+M3pJZU2So6H+WbpVnaem12ZEGyzLkTRvPEK79j1CGNUzXn35N2doYzGbV2VspijzEtGN75qvi8kNNyFgZopUWNfaxeX6nEn/FqdW1WGf8AT1xaJyEufqn/AFJbj6ecUr1+OcVuxvv0E0e28u3antk9WvcSBZfYp7ZbkktQbnHGwknbcakUlOMgpA8hHXDv0++gNHl+82dw5Bv0c0ezNDJa41tz3oDLDJIyibcL8aR17FJ2QrBHQmmisSL/AIk5iJDQ0q71yAWK1uxbMrthwW32ygfqGWSkylxNgYmDgzkuYmOJmP8APGvCG/c3i9uV/eJdxtNuVjczvMt73Ctht09/6lL3uKQyTrYJljZCoV1XoFVFx6CzcT29q0tOGsi069c04qgz9PHWCInsCPyOhRAuDkkBiTjObbfG3k3B7527tMT2WZ3MomnR3DnMO8aL6t1YzUuZPpUJTyT7FxbbJiyBl8zI8wRR+h79Pnq4PVX0r9Ot/k4zudu/u9WrsnK932uaCEbdvm2GXa913K3HHYjt/TvZrR3bM6IzKt0OEyrAeUHqh6eT8I5Pyaq3IacNalLY3DY9tvwPY+rpzEWK1FGljaATBJHgijLjt7OAfu1vinin41KMThb31VQXRZceQYVuyFSS5lCfbMmLmnM9mMmJKOC7SUzGtinqDbxBBt3WwsbNJOszy2bciYJRIZ7EvcO8jd5JZCxCACMMWPWFza+taaa6vsPIqpH9PHHBXR8/e8kcMfUqEwsaRgBmz3IVc6lLsvdVfJ10Ym36qWWrV4lNGTKTfj0wKk2Ak4jszqP9dUTJhx7OsLKJi/RCZoUmeIoGOCAe/tn/AMXPgg/vkfPjOfGsZsxpHMyxv7i+D2xjJPk48nwP+Trv2vrXRppppppppppppppprVvlvYl3fu2Zx2NuKq5GnYK5UXZhk0rslWfWdStEr+qiHKcUotLgyr2BAiWxZHGuyN+hcHOJI3jJBIIDjGRjz/uCCPxqpqTLXnSVl7BSPgAkechhnIyCPg+CM/HjVFfyW2J5Zz0S/HVwyGIwinUquIqEuvex8qnrZmytzJC/a7gQscuzEgtYrGnXH8D8rP1j/p5/Uf6j8qj3vbJdr5p6fbNGW4/xrYnj2vdtqjZV+ps7rt96RV3rcZcANeq3JF9kLFWoU17B/RT9Mvqn6P8AFNvNDdDZ2PkG4zxtf3PcFe3t12UZ9lK08CF6FZFJ6Vp66jt2ZrMzfdqqvPba8l17R2f5N3O2sDpEriMPet1yLvAci+upqijt+BF2IO8SP90TEaSweivqJXqdrHAOXqufbyOP7lIgZWKle0VeRDhwVOGOCD/c634j9Q+CyRiNOVcfjcqGWGTdaVeXqVDZMU8sbAdSDnAyCpGM63RsXE+Udpbr2puRuIzOAuS9TsJVv4xy7uTumkwFiallQwNeYMoK02ForD3sm0fWGtkfQP8AT5ybiHJti55yzZ9x2ndal15+I7FJTf8Ail28Ynjgns15I+lSqqyOWlsMgiUNI2GUDWvXqz6t8R3bYd64ts9/bd4gsRNFve4VraPt9Gl2X3I0sxSAzWJCo6xQ+6GJWPDBmOs9a2Xu6vYh28H3gsjksgdoco4vXWv2WrfkCQwzYpinf0vTZQ1iHpWHQ/wMAg79TXHvVyjv1qXk1TdLvG6+43FoyQLYtVNpvXBHNeiuVg88kNuclJGvfdXuwCJq0qRIYYsv9JuVcNbjgi4/DCNzsVK81pkSL6q/BAHipmNo0TvVhBMaQdVatIXDp3YO2P8A4Hn83lFrwWNvZSFsEB/h9SxZiQGYCCkqyiWIDExJFzA/bt/tE668c4Ty3kiitsfE+SbzZmJ6xbZsu43WOTkFmgryKo7HHZmVV/JA+7Urych47se2vNvm87btgdO7Nfv1KoDEdmXFidCWPnqo+7GAPPnVp/xo2ZksNtS+nP3xxm4sdkhdj8OWS6WEIbWXNn6yoPKIgmSowKWOIIIiYC5KJn2W/Qt6Wc14PwDkmz87V9pvR8rfcNo42Nzd720wWKFcXo93pQf5eFprJhnjj96cqZG91YnwuvL39TfOuP77ynbrHGgl/bbG2mG5uv0SPXtOtiQ1xRuMDKxVfdWQrGithPbd1DASsxsWYHItxFU6eWdxX+qmWOQ6TQmW3ezGthzlkTkqCASsOgzC4gO5bl09ssd96badql2m+15IBul9GmguxCOBpNwrixZmaZUDTVoYOleNZ07e0Y0LPrTcuRH+HLuN1LtJKxlFGr/hTVn7yIlSUxQxLGGYRyySBpXaPsvfLYEkvG21LVluM3HkGkEY1bVIGS7Wr10k+mxbsmI+sEcGcLSoiiSiOZgRmGZuv+XgFcN3ZgDI5wMnwWOFPVSzZYj8ZwPHxhNmUSyOQMDOFGPCoCOoGRk4AAyfJHySfOt766tU+mmmmmmmmmmmmmmmmmmquPPmPtVfJ27UVChaXXBtW1FBgZDkMfRuqcrrytgMY5/PsEhOQII4LmY+klNmWGKNgorCSOyrg9ixCNA6AHqQyPhiww4BUdWydZZtuIaSSSBmMoDV3Vh1VYpJlmR8jIdSiuvVl6hlY5BGou2LA01WZshFaSfMG2EmMlC44CYfWjv06/aD5iB5mI4+8TbDU9uCyZRGgafPaKJlDg4KkGDBKkFR2JyhLZGcgZGm42ZXgEE9h2EQ8PYZuhPhlKzkjtlf6VGGIBzgeMfkt7GlaLcZRFhdckVQgrcQ6tWF0MOIJtb3shfEzww+Z/c5L7xqjv2rFSvHdR0sQxzQ1w7TjtBCZFMkkbNE3uhBheuQx8gsR4NTQhFmzLRZWhmkinnZVgVjPOYX6IyhwIezZbsB1BHZVBww5zSwmY9Vmzarvl0zK3fXIWLgYP5n0EBApkZ47FBFH+fvqn3Dj+x7m63rkVZjKcCUzIBYjZArSuoTqzlSVBcZ8YGCuqyhyXf9nU1Kc08JgbJT6fu0DRsCIg7ZMYDAEqvVc/BYZJ7Ri6mIqq6Aw21IGD6jdaxcSETMwQqmIKI45iI/GZHiedd8VLb9orusJkWqsbSB45XaMIgJbt0wpUAZ7fkDHkjVvs7tuu8yoZ2jay0irh4Yu5aQlU69gSCSctn4JP5OD33Yu89t3Mq9dEa6rCiWiGf0PbcnoPtNkDJMGZmYEQaZEQhBdRiYibXsPM+PbpPZh2+1E5SRUQpKHFh26+7J1Lkr9zdQuXwozhR4Hdv/ABHkG2VoJ70UhV4RI6qhVa6qSUTsIwjfacsyqFDnoC3k6lnt4UHKDYyOxBMgMFz2GBkikYjiJgYiOZ6zMR9pmZ1m6MgKkYyY39sdvOFUu2B5Bx+Tgnzg4AGo9n7MpAQkZCOf/ubAXJwCP2C5+DkfvqV+zwcG18F9QPRzMZVewPv+BWAh8jPP35iGRExMcxMT/wBapK8kksEUkoAkeNWcZJwzDJ+f/YP/AEPGNUF1I47dmOJu0cc0kaN4HYIxXPjx5x+PH7a7Jru1Taaaaaaaaaaaaaaaaaaarv8Al9msLtje+AtZmudall9pnM5isDOyreIyr49FkVLYTYNNtMJkhmIgCURCDImLPd3PbdttoNw71xYrSGO6hbCPC4IjkVAxYHIZCVIGGVv6gBIvEdi3PfNrtnbpFmeneVZKEhTq0VmuQZY2dl6eUZZApycrJglMGvHP+Wtj0qzHoyDcpZs3TWrF06Nn6s1wJizlFgVxXg2ksoZMnBSQ/aRnnWNTc82ihAXistellssI6laCZndTG6zBo36pF2YrlyWHbqCpBbUgRenO9W5VjlrR0ooKyM9qxNCEjk7KyHunYykKGHUBcfd8Z1H7MZ7DbixGZoY6yvC5LvZMK2RapLJOZUNUPcULNvdaXG6v7RmGFDBWQL51gHIOSQb3sNrbfas7bZikV2qyuY+/dy5aF1MQLIuQ0bFWPkJ2GDrJ9r4rd2Pfa18NBuFaRWUWIgJPbMaBesyN3ZUkxlXBdR4EhQka11vTeQbfzOGxeDytZ2DxeNo+thyDihkVDXZl7eRN1sCOwUuAxET9Qrk4iZjGOQck+ku0Nu4/Msm0VdupQKlis7kzhMTl2ciXLsMs6sGLE4+0A6yXY+PvbpXtw3uB03OzuFqYvHOij2mcGuvVQyEBcqqMuAAARgkalL4n81bVzeFETyeNrW6AIXYqZGwigxktiTEKoG0UuBcSC4bBlAwMy2PZ+JS/xz1B2S3tTxWJa8FiqoiNWb2ayEY6qF7N7Tx9sgyKSMYLDuWJinkXp9v9fco5ataaevaPvfVQNJO8ZDZbv0UypJ1OVUjGRhGC4AkBO9/Hu3Nt2XA3DXL7ffYp0saNe3abkLHJQ3lPaVB757G0jXECESEduI1aN35Dwvj/AB2xFDBtb3JPqJalWikMk7XLH+IZgYB2iUSns0hdB1VQoz1UVuzcV5ryHkMBkbdYqcbV47lu608MCUYMIYSJSEmdogYxGquPuPZsZztrxPuqLNPFZDI5ezmN3X11sSqhWlqsVhal4EKrpYB9E270TYJ154E0yt8pDopEFPfxndxNSoXbe5zblv1iolY14nZKFCCWNBGrIQqS2QZDJPIru5mJRcIoJ6+X7CYLt2hR2mDa+NU7M1027CI+47nNC8hldHXtJDWyixVIWWNBXxI+WfOrYVAK1LWMRArAVjEcRECEQEcRERERxH7RERGpTUYAHgYAAx+wGNa9kkkk/JJJ/wDZOT/2dfTXOmmmmmmmmmmmmmmmmmmmoO/NPbVfMYXa11wr4rfxmvJGEH2hkUGeguZiJBsScyEfkUhEj/bOsE52iGjBK5VRCZnyR8lRHhGP5Vuxyow2QCPzibfRaVzf3aqisxmSiVAJAUmSwpk8fBU9PuPgA4P9Wqgc5gv5T/Ohfmq67ZeyzUtYenkllVWoH07VT60YhZ2JJ6GiNisXpEGSYcdxi6hei2xlNewyy2JjI0MtSOdHrhA8ViIy56Mzh0Yd1IRVJJzrYPcqZvKxnr944IQomjty1ysoYpLDP7eA4UBZFPSQFyVC+CNRF8geYPHO3rNkvJWcwdC4lwrZKLmJinQUsC9aTpTkFWYssAeGe7u2iyZFEzDi6ZVXaPdpANz26W3PIylPpaoliVAuQBHGWLMwHYsexjIPVip84FuO40dkRvp92qVIIgwl+tuxQTNIxBZTJKQVVfAVAFMgwSAQMRL3T8n/AI+37iK2I3Ti6hKNsNstjIrO8pLClMStFZtVa7C5iefZ9TJRAPgoIj1bd94ZctCE7dsFqERsxMvsSrJKqsQuI/AQdSMEDvkEEAHVJtnqhxeuzx3OVbW5bGY1sRSIh8AqJR5fByCCTH5/sNd/8Z+V/GOctsjD7iwVuVSESI5CiBgRTyMmh7has18CRCQjAiRSXX7aju5xTcKbN9VRsVzkhVnryR/2wnup5wT2x58E5H5Eh7VzbZNzVWo7tQtAgk/TXIJD1+AWCP2Axnzjx4/GNWJ+N8YvMFUU22kIeUKZccv/AEiQYMybphAx26iXZfSZgikZXxzBFbKdGKS4K1mWCoWYxST2Iz0iXGPuVAGz5woGQHKkY8aya1ekjpNbqxTWQI1kjgruC8rZDKqFnKgMB2Y5OVyc4+LB/AmIY/dG0qQ1FQH8ewpWHkJGRKRbIoFcFEQpfrmSOIiJL0q7zMxOpZ4S49+nWhrIqiSuZJyCWfqZAvQEfYrAFiAD5VQTkahP1Ebpt+42ZbEhb6O2kUKnoqtKqdy/UkyMW+1SQFUO3UYODbrH2/8Af/uedTlrVrTTTTTTTTTTTTTTTTTTTTTUYflXRK149rWFxyyrm0DzPHAhaq2FTzM8xESYrgomOJiI5+2sD9RVf+XmlTOYrMZOPkh1dCCPgrkgkMQvj99TN6GTpHzGaCT+iztU4IOcExSxNgDxlsFvg9gPPjHnz8fMPe7PGHizfG6XKsWHYzEkFI1GMsRdutDFUX9+rIXWRauJsOMgKAUj1CJEyAKEeKUZt95BR2pnCiewqs0mWEcMKtJIE6sucxI4VR4LHx5OdbF+pW9x8R4dvPIEVnarTdoUhVV72bLJWgY/aVQCeeOSRypARXyp+NeMPKeQ7PkXzFStb9zmcPbe4t1TOaOpmq+3MhbqX7Vli22s04TRUu2LD0Fkblg4WQk9KmVBGuyturtdWrDHUqRxitSTrXSGFxEEg8lFMjEkeSCzMzecjI8Y8pt13Oze3K1e3Gy167alaaxZmdWmnnYZmfPhAzE9VVeqhftUDGdbLNf/AMOeYdubOyPhrYXknB55mKbSo4jbeNzw7vRnULLHI29vPL5PfsPs1rTxrZt0MOzRs1r9K4FF6Dsru8tNattIWpQWVfp0WONXEokH2COyzTHKnIkJP24YHrg664dyeJ0HtwvE2OwIBb7gMFGIc4IIAVR9ucN/bFeY81sDZO/sht/wnY3AGH27urcGOZuQ9xOzmCzdcGY91XH4gTVGM9WAvlmsO21hhHF5XGqx7y+ocbbDKDcaFVJGjrK7JHLKpkMhkhdh0bqvdSje2wdOyAAr4JY5JSbv7UjLXZlCsU9xJCJGjBOSzL1woyVGCe3UY8DGvTr+kN5lueaPGV/bGch+QzexToQt14RZWjDXVzRq42uUQDumHsVSZUB7LJnUu1Rk+ajl61d9TeP19l3mnuNWCBam5rN7kBV3CXU+6zKAWP8A9T3VmiVCQrYUovXrrez9P3O7fKuMbrsW6Wrcl/j5qtDbJTD7ZOPbqQBgg6tXNWSGRmy0kbBuxYHHpC8D7dUvdGDcK5E65sfP4j9wTUbIyfMzMGBSEcDHXgeZntETPZwMxyXqyqGDoJG+B/QkZJ7ef6ixX4A8ZOfnXf6nSum221YqY3eJAM5w7yqPs8DspUeSxJJ+AABqempr1rxppppppppppppppppppppprR/yHqjZ8XZwyiZGq/HWJiOOZiLYqKI/zyQukY/71ifN4hLxrcs5/wANI5fHgkrIo+0/AbB8Hz+PHxqSPSWwa/O9owQPfW3X8/jvWkcH/Zox/tnXln/UsLcbfGNWvjs1hMBt/Obtxm0t3NzFPtWjEZ2GhjbCsgm9j3UmKzePoKvHD4SyrecyYgkgBxR6QChc5zWr3F9qZYp7FSZHZI4Jqqkn3VQqJRJEWZlyv34PU5xqcv1Lfxan6ZzvttmP6G3dpUN3SeMSSS1Lzno1aRirV2htJGDjuTDIV+3oG15cM34t2XjcV/M2MtbUzamYuMnTrIye6V5DJU20cFbbXPF5bPWRXZOlk8uyaF2j7pXty8DkobbQCdzYqlRY1ljeNwIwwQNMjOrIhKdJHchirSN1YBgEJOCQNeZNmPJkYgMAO/ghl848hwMDHkZz4III1wsDlcdgt04HYODw+3K6N5rQ9u5K+YvXNuROQ2tGdYAHfizSvlFeCxGcpjQpVU5NTKTk2ljIn3oUSaKuiw9J8n3ldzD5h9zC9u33Y+yQAL92QAxOTRo7MDlQpCjKlhkA+MMQoPz+QcN8nA86zmE8d7d3nYxOR3LksHiMjlKm24XGf3lnG0MW3cmOyD8biQjDKxlXH1sJkqtPb27/AKapSx2zshlqhvC1XXbaHwa0TsjzNGjMiEmSeTqnuIxRD0CqAjqsUwCqsLuCwYdiOrKkY7D7uoTsFIBYNkthR1UkLknODjPxjV7f6PFTdu1/MZbG2rf2evY2W2jc3zvAaNx+4MhbDFBg0YrG0n3c5kLGKlOT3ZTr5fITW9br+Oy+KxjXxQs2Bgv1nqbdDtW3WZEV7S22hpSxzsscbTKk05lBaT3VCRdACsf+Jnr2Pg7N/prvbvHyLdtvo2K8O22NoN7eIniE1iZabfT04azB1EDe/dLTOEkBRCoC/wBY9h3hDHwGROzxE9Kbj7jM/aX+sOPy/bjtMR14meJ5idYD6cQD6yWUKT1ru/fyQTIVGMt8Y+ABj4PyCNS56n2y1WKHJDNaRChA8CNWJ8qMHOPz/bqfxqT+pk1CummmmmmmmmmmmmmmmmmmmmtXea6xW/Fe90h/cOEdaGf8jNJqbfaP+Y9PP/PHH+dWDlERl49u6L5b6KZl8f6owHUj+4K6zL08sLW5xxiV8lDu1eJgPys/aAj8eD7nnPjVBnlmjTyVe3jctVq2qgWJhiblZNyu1wSQiRocow6LNcTEzHcY4KOSieNPbN2bb7LtFPJBNE5AeJ5IpAc9ftMRjZfjByR/UDg+NeijbfU3On7c9aC1DMgb2rEUcsXXHaP3FkV4mPnspwQCCVIyTqiP5d/GTxdn83cztfeOQ8cblv0mXBmpbfV22wMfKah2jo1vVWrMsvNEN6w+1dsdjTWd62pOaOCerHINvrQ0J4JN3owylQ5mnXcEaf7/AG0sF5PdRMHqksLRxhgvuAHxqX6uehPD9yvWt2rbivF92tVPd6exWOySCsBAZZqoihMTzMVWR4JkkmYErG57HVcR/Gff+WksviN7+Oiwih+vZaLc9ti20GMUuDbUuMi/UA32qpCBq+phrEgySlvEzonqvseAs1fd683Yq0DUpZOzhCSisk5jzhSSUYD7WOCASNT7HoNzBopZqm6cbt0ggk+sTda0caQtMiLK0UtVbKrllUK0RYMyqfJzqdPx5+EezspuaojyZ5bVVzTbWNqVdkbRytimB3WwPMhk8rNdlxjxfVYJ0l3q7G2E11HHZtWcC5Z60W4ovc47tkvQxM31N0StCi4dWZa8UpClWVu3vznJXIjVRkyz6f8A6adtlsGvzXldeOyJ44htWzyQJZkeQxMqvbtQ5kEyyKENSt7YBIM3cgD0+eGdmbH2FSoVNr4PD4mUY+vTl1DHUatk6qEhA17FpFYLNiBFS2n9Q9ndgwwpJkQU63zch3PdZ3lvbhZtlnZytq5LMqFizsypI5VegY9cDCjwufjW5dri+17FSSDadm27bYo4I6/ant9evM6KUSNZJIURnLMir93Zjn7iB5FrPg76dlS22uwXiFVK5eImAsk2ycTC2R7F9epBwRT2694iBmI1sD6crA0VhoHWVVhiX3lDgSkuX7Yf7lx/Tg+G6hwACANS/Us2FtQLYRomeaZxAxVvbCqqkCRCVcHIfx/T3ClmILHf+pR1FummmmmmmmmmmmmmmmmmmmmuubwxbM3tXceHSHsdk8HlaKQ5iOzrNF6kx2mYiOWkEc8/b/j94pNwgNqjcrL/AFT1bES//k8Tqnnzj7iPP+3j51c9kurtu87RuLZ6Udzo2nwCcRwWY5JPA+f8NW8fn+5154/KKn1ycLea9qIYp0OnoTCgpW1cwUSUHLQKJOevWRbEME+QnSTeomrTyJKpisBWWQSZYSgkJIB2BPbspOcAZVsEHGvTzbJ47MSSQMk9eTq8TIfCqyB4ycfb0COoAA8AqQMYGoUb52xt3PSdfL4fHZnockE5HGqvAlxSBF6JtpZCmQYhLOvWDIQ554Hiz1r9qkxkr2J4CcAtDK8ZJz48qQC37Z8jx5Gvnc9p27dEQXqVW2kZLItiCKYRnwSy+4rEZ8ZxgHrk/A107HeI/FCUNVPjzbYOylJ+KzFicLU9l6g9qWtU8lAqJS5q1zBwRNAlyQEHByy7Hk26lIAb1wiJ+6BpnYAqGAZQfK4VnUHJwpIOQdYwvBeNe7Yk/gm2BraGGcrViUyRsyuyOVA7KXRXIGPuUEEHOt9bS2lsyplcZk6u3sMGUoLqLr2Zw9A3YtFKATRTXuChtyRQuskVOUxTFkIRABC4nVrt71dsAxfV2TCxYyxtI/tFnJLAoGIft/qZhkscnWQ0OM7PBKkw2nbhPAEEE4qQmwqRKFiCylC6e2AoUI2ABn5+J87DtyQJk+qmPWmOn3lXEBxPBzEx1GJiZiYnnrwJTMwOqfbJYllYO4RmI+0g/eAPgMQwUjPkZAI+Dk41TclhcpkIzxqCewI8YOfw2TnyufIBOW+0E6tT+PVco2vbt8ESmPTWU+RkBcVdUk+QiZkpEWNgZKf/ADghj+2dbb+l0WNkksdW6SypFHIV6iQQoQ5Vck9QzAFiACwK/I86LercueQRV/tDxwySyRhw7R+84EYcgAAlY2IAyCvU58gCQOpN1FWmmmmmmmmmmmmmmmmmmmmmvyf2/wCuJ/8AyedNNeY75M5aztbyt5E27XyKLRYnem4KllfBSCO+RfYnqlsg5Yet4lEjHqZMFK5mCGY0/wCcbc8O+7nEVDql2z1bqSCHcuDjx1wH8jPXOcE5B16O8B3eO9xHj1sL7PvbNQzEXXKtDAtdj3AIbs0X2g+cEA4wcQ9ub/lcQu7WCVCwiklGUiMwUTHMHP2g/wC8fyIfvET9+eI9kpHLqGOR4ChwPn4IVvIOfx+fOT51mosjAOWwfkHBAx8gk+SPHz5P7YzrkY3yFjnvBEVHBDoiZZKhYPEH1mYM+OBiYmOF9ogoIfx4mNdZqzdAQ/VT/wCXUEqMAkdgc/nHwfnRZ1L/AGjOScdcj/nyP9h+3xnW79r5ojcr6JfU2miAj2JWPZn3j8+SAekcs6mcTzMlEwUTxTHbp3JaOZSXwcd+oJOf6j4AIIycjBByDnVdFbjUDumeo+4hGYj7TnAOc/GAAfJIP76lzsjLY6uayy+QphNdi+ya7I9hcxMCEsI+JiescSMjzz+MlE86qdurUoLP+alMrJKoMcRLBvnIZ/GVOMD7lB84Yg6od3Fq7WK1IMSPGcO2Oij/AMsYOTgnOc4wTjOrpvBLU2vF+2chXIZr5BNu2gAX64UorjkgqY/8iCEfkfHJFMzPM8zO7fCAP5Y2p1KlJYDIiqgRY0Z2CxhQSPtC4Jzlmyx8k685/UtJIebb9VlB96pZStKxbsZJEhjZpMj4DFyQv+kfaAAMDb2sr1gummmmmmmmmmmmmmmmmmmmmmmmqxPmz+nJhvkxefv/AMd7tDxp5Zmstdu7bq2Le1d1MrJCvUbnE4405XFZJaFrrlmcZ9XD66lDexN1igdGBcq4LU5C/wBVBN9Ff6hXkKh4LGFCqZkGHRwAF9yM5IA7q2AdS5wH1Z3Lh8KbXcrndNlWRniiWQR26Xdi0i1pHDJJCzkua8gCh3Zo5Y+zKaBvKP6dv6k3jWzZGp4iT5XxSZYCcz4/3JtbcM2QA5gWjjbtvb25v6gxPVTMPLRieDOCnmYh3D0x5FAxMdSC71xiSrLGT4HglZPZkzgA4IOP3Pgmf9s9aeFXlHubpPtrtgmG9VniCZByDJCtiuSD5JEvn9vPmOqPAH6glW2KX/Drz8HrbMQxPjDcTxI4ifuJ13MSYR9ogxKV8TP5/eNWA8D5Lhidguk56jMJwzfuo9w/A85+CRgeTrI09TOFAg/zTtJB84N2NTgEA5UqCCfnAGcDIGc4kt42+KH6iG7bFRFP43eRduA2FDatbwbtvZlNcfYeZHcWcq21qiYhjJXWsNGJ4FHaJiOqP005TbYKmx2YX+C87Vq8f9vuklDEDyScMSAMZ8Z5m9YeB0A7PyWpOAPtSnDbtSHwPAMNcp5yQMuABnJ1bd8cv01fLK7GOzvyE3vh8PWQxb2bQ2Nfs53M2YHjtUyG6rlanjMYueJEyw1G/YkZ5Rdqt6mOZ8f9EZzNHY5DeihhU9jQ21meaQDP+HJckVUhU/BNeNn6khJYz92o75R+pSvHXlq8P2uaWy6lF3Td0WKvCSCPdh26J2kmcA/abM0SZAMkMi5Q3TYTC4vbmIx2CwtNOPxOJqIo4+kiJhVarXCFqUHaSMuojHY2EbWHJMaZsIinYSrVr0q8NSrEkFavEkMEMY6pHFGoVEUfsAPJOWYksxLEk6nXbtvcrlrcL1iS1duzy2rVmY9pJ55nMksjkADLMxIVQFUYVFVQAMpqo1S6+bSMVnKxEmQJesTIgCT4npBmIMIQkuIMhAyEeSgCmIGRzj7cZ/GfjP4z/bPzrlevZexYLkdiih3C5+4opZAzYz1UsoY4GRnOoV1fkL5wxeEzs5/4+7uzG4q9nOFhywGDztLBHTU9C9uxdFlbN5U5t1rdW7kn1QKyhZXFji02KFpCcXG87rHHN7mzWZZg03smKKVIuqsohDjrM57BgzsgyB2BjVkYa2Gm9K/Te5uO3fwz1V2Lb9pki2pdwXdNw2y1uazywyybw1d0n23b1+mmrz1qkcr+xK/0rm9NDailfcnijzhU8p4vbWRrbK3zhVbjqZ+yFzI7dvhhKE4HL3sTNe/mGprJRYyc0G3cYIJbWsVjWqLn1fKdXLbt1XcI4JErWo1nWZg7wsIl9mWSLq0pCjtJ07xhQwKEZbscCP8Am/pzPwq7u9OfkXG9wk2ibbIXrVd2qncrH8ToVbwkr7fHLNI8dH6pat3tJHNFOjsK/sKZNf/Z</t>
+  </si>
+  <si>
+    <t>Trà sữa lúa mạch</t>
+  </si>
+  <si>
+    <t>Sữa tươi kem trứng trân châu đường đen</t>
+  </si>
+  <si>
+    <t>Cacao trân châu đường đen</t>
+  </si>
+  <si>
+    <t>Matcha trân châu đường đen</t>
+  </si>
+  <si>
+    <t>Latte trân châu đường đen</t>
+  </si>
+  <si>
+    <t>Dalgona trân châu đường đen</t>
+  </si>
+  <si>
+    <t>Sữa chua trân châu đường đen</t>
+  </si>
+  <si>
+    <t>Sữa chua nếp than trân châu đường đen</t>
+  </si>
+  <si>
+    <t>Sữa chua nếp than</t>
+  </si>
+  <si>
+    <t>Sữa chua matcha trân châu đường đen</t>
+  </si>
+  <si>
+    <t>Sữa chua matcha nếp than trân châu đường đen</t>
+  </si>
+  <si>
+    <t>Sữa chua matcha nếp than</t>
+  </si>
+  <si>
+    <t>Lục trà chanh dây - thạch dừa</t>
+  </si>
+  <si>
+    <t>Lục trà chanh</t>
+  </si>
+  <si>
+    <t>Trà sữa trân châu</t>
+  </si>
+  <si>
+    <t>Trà sữa Alley 03</t>
+  </si>
+  <si>
+    <t>Trà sữa mầm cây</t>
+  </si>
+  <si>
+    <t>Trà sữa kem cheese đường đen</t>
+  </si>
+  <si>
+    <t>Hồng trà royal 09</t>
+  </si>
+  <si>
+    <t>Lục trà nhài</t>
+  </si>
+  <si>
+    <t>Hồng trà assam</t>
+  </si>
+  <si>
+    <t>Thiên thần</t>
+  </si>
+  <si>
+    <t>Ác quỷ</t>
+  </si>
+  <si>
+    <t>Trà kem cheese đường đen</t>
+  </si>
+  <si>
+    <t>Matcha Oolong đào</t>
+  </si>
+  <si>
+    <t>Trà sữa trân châu royal 09</t>
+  </si>
+  <si>
+    <t>Lục trà sữa</t>
+  </si>
+  <si>
+    <t>Trà sữa thiết quan âm</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAEEAwEBAAAAAAAAAAAAAAcGCAkKAwQFAgH/xAA7EAABAwMDAgQEBAUBCQEAAAABAgMEBQYRAAchEjEIE0FRFCJhgRUykaEJFiNxsWIlMzRCQ1Rzg7LC/8QAHAEBAAICAwEAAAAAAAAAAAAAAAQFBgcCAwgB/8QAOxEAAQMDAwIEBAIHCAMAAAAAAQIDEQAEIQUSMUFRBhMiYTJxgZEUoQcVI1JisdEWQnKSosHw8UNT4v/aAAwDAQACEQMRAD8A3+NKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlcL8mPGT1yHm2U+hcWlOT7JBOVH6JBP018JCRJIAHU4r6ASYAJPtXmrrkJP+7D73sUMqSknn/ne8pP3BPfUZd7bI5cBIBMJ9RxA+vPTFdiWHFcJgdyQB3+f5V11V089MJePdb7aSO/dKUr7+gzzqMrVGBwlxR6YAn7mfyrmLdZAymTwOePfj/o1xmuvekVr7vrz+zGP3H9tcDqqejCj77wB9cE/ka5C1PVcYn4cfKZ/4K+BXZHrHYHt/Vc7Y/8AH/j7j11xOrdmD/nH9Bn6AU/DE8LB+n9SOmfvmv0V90H5ozR/s8sHv2I8k4/U/vr7+th/6D7ftB7fw/0/ry/CH9//AE//AF/z+f0LgV/2fUB3KZA4GB6KaT9fUdtcxqrRjc0sd4KSP9j9PzribVXRafqCPuZPsMCuRFwx/wDqxpTf+pCUPJHvkoUFcfRJz6Z12o1G2VyVI/xJ/oTXE2zgyIPtOfp/3XoxapAmqLceShToHUWVBTbwHcnynAhZA9SkED1OpaHW3BKFpV8iJHzHIPsRM45rpUhSfiSR8xj78V39dlcaaUppSmlKaUppSqSuNBh/7XUpC2mw0w4hxJJaClkJcaUAroytQC/l5zknAxqq1ROxlT6lkNp2hYzgEgAiJkSciOTM9Kl2pCleXHqVuKcwCduQfmBgj7da8RuqQ3wChQUokdnGnAM4PJCgck4wOnvxnI1QB9lUFLyCJMCYPT1cwOxHII5qcW3EmCggR2P3A4j8+Oma7PnR1DIdQAcnKgU4A49Rz/ge+Rrs3A5DiCOR+0RwcmQogZ4685iuPqByhcxwATxzxjH3NfvWx6OsnnHDgB+/rx9/oPYT/EkjnC0EDvwo5noABHU185wUqAP8JB6AcT19o+2eJUiMDy8yP/Z/n9Rzxz3JPGuG5MxuE/NPGc4MySMiOIxBmvu0ggwTzJIM5B7c8cZgdK4FTYIyS+yCMnAJUeCeT8pP+B69tfC62DlaR0MqGI45OPbBnikL6AmDBkdTGYEdOMyeI6150iv0aPnzJSSQOQhBUf8A89hzkkY7DXWq6YSDudQBk/FPsDwefrEZrmlp1WAkmfhJEffH1GP5iqQq+5lv0hpbinFdKQohbzjUdAxklR6ipRA7nAOf0Gojmq2Tc73UkACTO0ZngqiOCfoD2rvasrh1QSls7jjBJI69OBx16nrM9ra+44+5smVXokxDdPtuqIhoaio6lSZpjJkrDktZz5DbbrXU22gF0qKVFKQeu78Pvt6ihy6ZUUtNOhsQDLpCAudxxsAWI2iVZkgRMbU2F2SkMuAeY63vMx6BuKYAiZJCueMc1cBrKKp6aUppSmlKaUppSqWvWQiJbFWluJ6kRWW31j/QiQyVn7I6j9tV+qEDT7okSEt7iPZKgT9on6VKskld2whJAUpe0TxJBAHI54561BsKs23VGfMZltMqUOcrDS0EKxg46TkHjJz79hrW5fsHwCl1AUQpSoMKSBIIJwQREc/LHGTqtbtgkKacifdSSD8MGYI+RHYgmu6tDKUp8iqqSOnI6ZAUnkdQPzFQ7HOO3Jzjvoq3TALVy4lIGAlZiTHEqPGcgcz2g9YUQfU0CRggox8uAcA4yOnQRXlSVzUhRaqucHsVMqxjPr0544ODznHfjMVdvcBR2Xjw3AQCUqSDEDbKevJzE9MGeYWg8soIEg4UDyOYMcTPGJ71R1Uq9aj5Caq2kgcApaBwAfXHY4wSRjH21CeRfpkfinM8ZRgdTGzMGBBz86lNhgiSykjiJVIJHBzPHQgA1GlavStRkuKXXWkISOSXGW8d85J4/tjB4yAcjVc8dQMA3iwlXABCFT1JUACR2gCACZPSY01bqyGASCCTBIJwYAIJwOQTBPUVAN0bviIXEybwSnGcttS8ngenlHB79+Bnjt26FM3DgIXdvLiMBxeBBBkBXqzInMSZ7GwbZbEAWwAjKvL6dzj09/zEVahf3iFt+C2+uRWnpSklWcyR1HkgcOL4B7D+3voxZtpXucKiqRhSgRAzMEySRk45HcVK8m4XAbaABxASRziTtAkZBgd8SDWVX+HTWm7o2Hn3Oy427HrN911UVaCFf0YMCjwQFLBIUpLjLgOD8pJSec63J4Xaab0wFmAhTyzIEbtqEI3ETyYzgccDpr3xGhxvUA07AWhhuQmYAUpagnOcA/1zNX76yOqGmlKaUppSmlKaUqkNwIyplj3dGQSlbluVgtlJ6VBxuC+6gpPoQpAI+o1A1Rsu6bfoBIKrK5SCDBCi0qCD0IIx79RU3TVhvUbFZAITd28gjcCC6kEEdRByO1YtWqxIaSlQdWUqLainzVYKhgg8KHHrjOPtryxcvutOHY64AoypJUYnsYhRBA4PpOTHWvQKbdlwEKQgGIBCdsT9046HtwTBrgmXjWYinFMzXgylsKQ35nW4CElXSlJBOOD0gHHUQM8jU5nWLpm3SfMn1KSB5nAHMpk7REbTMEczmq97TLUukFpJgBRIQADgCQrAmfiPscYEwO14kG7jtO07uo9yiDS7/ZpxtN2ctEaRVJtQhTKi1SkNF5QXU241OqJchtrUtK6fNSCryDr4/rOppWtolRU2V7w2lUoCTG5U5ABIzAB3JHUV2M6NZEmW0ZGAdpSJEgiQASB0JJgZGDVC1HeG68yEv1Jx1Qyor6njhWSSrJBCgCOTkD19AdQHdbvw0lQdUZjHBAVkiASQeneRmBNSkaPZhQSllED0kiADBI7D8p6GSIq0DdvxMt0e1rhuhdxfGUu26jKpNYdp0lEpUerw6lHpE6luo81KRUIdQkNRn4alJdQ8fJOXMJV1M3erXNw0wlS0reSFoSsEbkKQVpWAJOxSRJVEEexkW7Om6c02p10NEIkekJlBB2lJPJUFEJIOZMYOBb7e26NzPNuNiYtPyqSVklJ6vynIGcHI7cH0ONTmLq8dKUl4wCPh5PQRmACAeJ4j2qanTrJsH9mCDIyQgQO4MTETEZOTnNWtVu5KrMeIkzX3/MXyl1xa05Kik8KIHHoDnpHPti5Y3naZUTjJwokAe/zMn7EV0OtsIB2oERAI5J7jiBggxMxBMiTtnfwdKa5D8DdkT3Os/j98brVhC15HmNm+qpS21JBJ/ppTSvLaIwnoQMADW+vDaNmjWQ6qQVmeZUonJ5P1z06V568Wu+br9+cAIWhsAcAJQIA+8k9STWUrV5WN00pTSlNKU0pTSldKpRROp86GrlMuHKjKA7lMiO4yQODzhftrg4gOIW2ZhaFIMdlJKTzg4PXrXNtfluIcHKFpX/lIV/tWGqoldPlyIfX1JjOuMJUSUk+Wst5I5wcjB6ePY68naxbqs7y4ZJKw04sAgAGAowCJAmO057Zr0bZOJuLdp0CNzaFn5KGY5J4wO3NU1NqB6D/UwRk9Q5II+YEe5yBjOR3POqBbpPpggyc7o7ATyBPBwJqcEDHpmDgxkz0OOAMxzzWtjvhuvuF4cPHbt14fr0/Erb8K16eJK0N8NrbyU5MkJos+u2nPt6qbXwKpPAolMsx/dC4qhUKjQmnkVa3qdIWqnsiFU2n2tk2Gn2uqeHLvVLUJe1a10x+xu7ZIAK9jyHUXpCZcU8LVpKQsAodI9StyFA47c3lza6sxaPjbZPvocZeI4Kmij8OTwlBdVJIIUkGI2mRkVuDxIbci0De6DVDaZ3Wd2f8A5gMBSaemtNXUuxjXVqLhcFpru9tVBFa6Oj4gokFCYSviBgf6r1Bdx+EkeebL8d5O71eSWhc7Y6vBg+YW+QjHxYGTN3VqEB4GGy8LcuEGCvzCzGf/ABl30Feckf3awHWTubeO/PjIvTZi3FVG4vDrtn4gN0t4rpujqks/itaV8tKtWtVCDmi1Gh0jcaIqo0GlrJqNVjeTLmJDVM85zZd5YWmj+GrbU3ghnV73SrKwtrcjcpKD8dw2lZDiXV2h2rX8DZlKT6wDjNle3Wp669YW+9zTbW9ubp18SkOKj9nbqIBbW23dS4lHxrAClj0ycjt5VBILmFk8KOMdWSTySTn6nJ49TwdYRZbipUTJIB5CYjvEZGIE9sQJz4o2pImFe0wc4kgCOBj6YAzCgafqdSYjslKVOPNI6l8gFbgGelJ578gEA+6TyMltW/MUE8AHBiTHsBzEdSfrFVtyUoKowgAmOJI7njH9QOa3cv4ellsbfeDDw/WvHcddRHslVVddex5j0q5q7WLmmOkADCVyqu8ppPPQz5aOpXTk790poMabZNDITbt5I2yVDcTGYkk9TXm3XXfP1fUHf3rlYwZHphGCenpx9qvN1YVU00pTSlNKU0pTSlDx+37nGh9vb+efypWGvcSL8DddxRsYDFYqLWMYwG5zyMYA4A6ccev6a8w+Mmi1rF6niHnQOZgOKPEgxHUcCZMTXoPQHC5ptmrBJtmSYPMoBJn2J6e0dqiCpudIV347HnAIHODjGPTvwecDnGDHqScTJiIgyDkEH6T7ggTORtxt7zMCekTMdQOsRBIB61ZT4lNtrS3i28vLbK5axQ6a1eFOlRqbNmi1qnOp1SHkx6JPi0642pDU1ZlRnkqYQjzZDi3Y7cmI6A83baXqT2n3jF80l1X4ZaSttBuG0uNmfMbK2VBSQQU+slQByQR6TFurNN2y6yoJAcSoJUUoWUKj0LSlaTPEgTlWZG4GtWStWzfNp2/uv4b7l3iuapbW0Dc+4aVbFKgVOj0qhN3Vbt7U2mVG8pdCl1KXcdxWfFqk2TLrVGptXYgU6vxmGnnDImpmt7wauLG6fsdbttNYRfvWDS31OIdcWGHbVakWyXEtpt2X1NoAaccaKlskkApBSdefh7ptu70169dNoi6Wlna40gIdRcIBeW2pXmuNBbhLjaVgIXgn1SMwm2NmWNsjt1S9saXc9CkSLXYiIrjqn6HSZKqjVUtSEyJVLghlEMS2pUYwUPhxxbUiODLkKcyrU+p3Vxq+oO3rrb6Q+pQZbSl1xKUNKKShK1BW7YpJ37SkSk+hIFbQ0u3b0+zZtWghRaA8xZU2jepUEq2jaUlYV6ZyZGSTXh3TjzFgk8qIBwUkgE8Ec4OByD+mdfLNIwf3cR7mcfMSCcY57kWzijtPPB28R9jyT154+opq1o/m12GkAqUqUyAB3J8zjnjj74yTnONZHYA+agdNwge6iBODOO3A5IqkvjDSyZCdpmDgEdU5OeR2xxW+D4faSmhbGbQUhLaWkwNtrMY8tACUpUKDCUoADGB1KJ7euvQNsnbbsJzhlsGeZCEzPvNeZb5W+9u1fvXL5+hdVH5VMGu6otNKU0pTSlNKU0pQ/X05/TSlYkd9IYibkXcykFI/GZzieCOJDoeBHpz5uScdz39NedP0gMlGtXWIC1LV/mCVA8cZ78kDAg1vXwivzNHsyeUsoTMzlEpI/IY7de+CrxLXdvf4Y96ri3TVU4+5mz28KI9swrIuavG3aNZdX+EpbDrDlSmluhUumogwqxJblyZlMVVHa2qK8ZCoCjqn02203WNPbsig2d9Y73l3DbfmquGgVK+FP7VawpTY2hKwhKCRG6KvXnLq2eDqSHbde1JbJCPKVhO4K4CMblbiJJHMZ87dWu2HbcF62rZ2p/Bbv/BptEtG7plBev6p21Un7SVclu3BBnvFcOU2gJhy6JUU1hMGZXYwaE0K+IdMOzYuHVh5293W3mJcfYS6LdLqEv8AlOMnAUnO5LifLJS1naRtFTHFJ2FKQsOqSpLTgSpZQrapSVEdNpIgGASNsgmaxVWN4PdvtknZk2Zf10bgXLf9s0eqKuO7rUhvwrXqV2XNGXcC51K/mN74qvhtxFauWFOYDUqJDStDvx6VoXmN74mutT8ttu1YsmbN5xvybe4UHH0MMHykocDI2tAp8tlaTKSrbGwmaGx0BmxU4pVw7dO3KAQ682kpQXHNyyUFYBn4lBRE7ZBkVXlvVSiUWiU+wq1aLe4Rdg0WmsXBOoM2Bc71KrNcnxLRs2p1NlmoO1mo2zHpcZDk1cxpmLTYtOkSEsKjKUmruWnXXFXzFz+D2rdWWEuJWwHUNoXc3DaCUBCXitStpRuUsrgndm9ty2y03bPM/iNwQhLhQsOlK1qDTa1ZJU2lABUD6UpSTBFWq3Jdl77vbyUXZ6xBIsi3NnLgNRq1Ypl2qrTki2oIix4bFccalSJEioPPtvRWqfMlPqlNzI8lzDbUhw5Lb21ppulOalebLt/U2Allpdv5QD6iVKU0FJASgJIVvQlO0pKQZiqZ27vdT1RnTrMqtWNOd3uuIe8wrYG0JS4QoneSCnaSokEKORFZINtYBl3lSGAnPn1GOlI7nK3gAOccDqIyOSOcjtqr0ob7pgRJK0JwP4gOOnuTg+5FXWqHbbPyRKGlKMERjJiMyYEDj8630LJh/h9m2nT8YEG2aBDAxjAjUmGzjHpjo7emt/IG1CU9kpA68JA5rzK8rc66r95xavuon/eqn1zrrppSmlKaUppSmlKHkEe+lKxceJmH8LuhXT04EhMGSOOCX4EZaj27ZJz25HfPbQ36SmtuqlXw+Y22ZH+BIPy4nMzMSCCK3T4Hc36O0n9xx5EnoQ4YiOcmcjB75izq7aFRrip0ukXBSKZXKVMaU1Lptap8KpwJTS0qSW5EGc1KiOhSFKBC0udIWekjORqZK1sOBbS1tOJVuC21ltYUIIUCkymcHCiDHcVnSUpUCFQQSApJTIIPIzyCcQRnBweIXfsCy6LFbi063aY0zGjswoyHmDPEeHGQGokNk1BcotRYbARHhsNgNRIyER46W2UJbHW5eXLhUVvOSVFXpOwFSviUQkJJUoklcmVnKjOalttoAGOnMgGAB6QoZ2gHg8AYnrih388SlpWB4obc2DkVfcuBIuiXZ7ZcoVs7drsujzbweDNCoqjUKM5c9TjTw151YnQFv/hHxyEBaih5MPMtJ0K5vtBf1hKbNaGBdEh25u03LibYS86Al3yEFEw2hW0ubT0I3VD+rMW+qW+mr/EAveSApLTKmkl7cEJJUCtQMArI3BG7OcIly9rMtecp1cig00OpUXEyYsRuFKadycONy4IjyUOg8pWHOoEhSSDk6ore6uEQlLyyD8SVnegggmChUpIOZBEz9qyZTLaif2aOm2PSoDAJ3JIIIAkyRA5mraVWXbNpJkRrbodOpKJL70mY5EjoTLnSX33JD0qozlhc6oSHHXFurfnSH3cqJ6wMJGRNXVxchJuHluFKQlG6fLQ2IADaBhEwAEhCQdvBmuhNqxbhRaaS2pydykJAK1Z9S1YUtXuSY4mpH2OgiXudZsQD/irko8UDBCip+oxmgBjkk9ZHJyMkehzkuhbTeW0f3n0DiRyBOZ+YnHWax/W1bLK5IifJdyDIO1Cp4ODx0GRzkkb38dlEdhlhv8jLTbKR2wlpCW0gD6BI1voV5p5rm0pTSlNKU0pTSlNKU0pWOHxawFx78jzSgBM+hwXUKJ/OWFPRXADjHy+SgfQkH6a0x+k5ki4tHiCQpiJAjAUoHJIgkxI6CB1rbXgB1JsXmsbkXKpHWClKgR91CInmrJapn5ucjJ9ACOAeD7dyf3PbWlHviJG4TESB79QeYPy9jmtmNgkHAPUTPykGYnkfLnpUaVsHCwT2Byff0JBxwSMDuSnkckDUI8nr0M9+pHHHT6TE1ObACQAeCcSMxzk5P5Hp2q1W/NuLDrV2Um+qxZlsVK9bcYdjUC7Z9Dp0u4qNHfLheZpdXfjrnQ21lx1QSw6noLrqm+hTiyqdb314zbu2TN0+1aPqCnrZt5aWXVCI8xsEBXA6QSMzAjkm0t3HWrhbTbjzYPlrUhBdb3ZUAspCkg5kY7CM1EN1px5+MA4JHHYEHAOD9MZxntnvqQySSCMjI5HIgR2x1AJMyanKAnODxkiQJ5+XYYJiJABq264mVFauCe+M+hI7Yzxj+3PtyMZDaEcYHMR3xwchSTkjkQJGRXU7wZIGeucZPQEzjkGZ5mTVc+Ginyqn4htkaHGacfk1vdaxKY2w2lRW559y0/zvlByoNxkPvL4ICWlH01mvh8btRskAEq/Et7RECSqSQYOQAZgYnEEGsS8RrS3pN+5xstLhRPAny1JBxkAqUBE9Rk1vRJ7fdX/0cfrredeba/dKU0pTSlNKU0pTSlNKVal4rrAlXLZrNz0tpTtQtXz3JbTaetx6jSekyHEpGVrMF9DcgpSOI7klXHTnWG+NdHOqab5jYly0Kl7Ync0QN04J9BAVjpJmsx8G6omx1BVs6ra1eBKUkmEh5BJQD0AWCUzzuCADWIer1dcZxbazjCsKJJHoe2Uq7YwM4JySRwTrznd2a21rRBBB7EESYjIMZnG4ngit6srQpKSFHiAR9sk4GCJI47ZqOKxX0FLigoEe6T+YqwU8jP5s/Qjk5xqrNsZnEgYEwMGD74MgTByOTFTkJxtBOePrg8jpxMkcYmKhK46wt0r4+XPHOPQY5V2ye2Bg4Bx78kW6pBMBXJAEmOgOMEgH6xExJloG0YIzBATwIGe0mfn16moIr7ipLi0pGcqJHYnvyBj0HJIwPc4HOrFhj2ABEYET8pEkT7mTgxzXIrEqPAwnPaJwCZke3PfNRRVqUF+Y4vCegBWSAcggkYHAPHAVnCSRycDVxbqCUgSSBgTiMgTPMA9uZnvXWVGYwQQY95jIgEQCQIJkz8ici/8ACR8O03cjxFP71VOmqFj7IRZCoEuS0RHqe49ep70GjwYvUUh5dvUaVPr81bfUqJJfoJX0mSkK2h4E08v3C79Qlq2BCSZINwsQACeShBUo4G0lJ61q79IuqC0sUaWkgP3pSpaZG9Fs2rcpSiMgOuBLaQcEJcjINbSAGBgdhwNbXrSdNKU0pTSlNKU0pTSlNKVxutNvtOMvNodZebW0604kLbcbcSULbcQoFK0LSSlaVAhSSQRg6+EAgggEEQQQCCDyCDggjBHavoJBBBIIIIIMEEZBBGQQcgjisSHiu8NtUsx6de1nUWXV7IkKXJqcelR3ptRtZw5U4uVBjoclyqIMEtVGM08qCgFmooaaQiW5prxt4XuLYr1CxtXLqzVKnW7dKlP2quSotpBWtnk+Y2FKQJS4mIWdy+DfE9vfJRp9/dItb9I2MOPqCGLsQAkB1ZCG355Q4pIcJ3NlRKmxjKqsqkSyUxKxT3V9Jw2HkOLCskJ+QOdSMA9PKMfUa1MXbcEhRUI6EjdPUqBIJGDwADMz22s3Z3AAlMjCjtBImMmcgyIODHSDNR5UoaVLX1S0dOfnypsIOB8xySspHoB1Y7jCFYOutTjaR6Zwd05mIkScCTE8ZBkmBmQm3WOCo9p6kcmQByc4MexyTHdYXbVPSVyqrCSvrV8i5LDKlLVkDKQsqJGQAAkqISkkA40/FKJASMxgiOnXMRmOIyfepKbUmSuYwcTAA4joAJxnvU1bC+DfdLxRVaKLSo0y1Nvi62msbo3DS5MWgx4qVAPJtuNJEeRdtX6OpMWNTT+GNPKSqqVKG0CF5d4d8L65rzqFeW5aWG4ebevoUEBII3JZSraq4WoHCU/s0mCtxA5xPxH4s0Pw604lbqLy/IHl6ew4lbpWJ2quFgKTbNgxKlnzFCQ22TmtmrY/Zax/D9trbu1230BUOg0BhZckyC27VK5VpavOqtwVyWhDfxtYq0oqkS3ulLbSQzDiNsQosZhr0Ppun22l2bNjaI2MspiTlbizlbrisbnFq9Sj9AAkADzfquqXes37+oXq9776phMhtptIhtllJJ2NNphKEg91KJUpSjLep1V1NKU0pTSlNKU0pTSlNKU0pQgHvpSo1ufZraW9FPuXbtnYdxvSVFT8is2nQ50p0qz1Fct6CqUoq6iVFTxyeTzzqvuNJ0y7JN1p9lcqPKn7VhxR+alN7v8AVVjbavqtkEi01K+tkowlLF3cNJHyQhwJEdITiovR4M/CqhwOp8P+1HWFdQKrOpi05zn8i21I+3Tj6cagf2V8NyD+o9LkcTZskDrxtj/kVYf2t8TwR+vtVzgxevj+S/z5681XFF8POxFuOIeoWze19KfaUlbUiHYdstyG1oOUqbfVTVutqBGQpCkqBAIIxqazo2k28FnTNPaIiFIs2EqBHZXlyPvUJ7XNZuAQ/q2ougiCF3twpJHYpLkEexEc96l9DaG0pQ2hKEIQlCEISEpQhACUoQlICUISAAEpASABgasgIwOKq+ea+9KU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pXyokJJSAVY+UElIKjwkFQSopBOMqCVEDJ6TjGvh4xz0+fSY6d6+iCRJIE5IAJA6kAlIJjgSJOJHNWRQfFRfNOiXEi6tkL6eqkepVwUH+W6DUnKQ5SmZHw1AVVJlSdNQL83zqfNqEiHS20xYE8Ox4D64ykO4qjxBdoD4uNJu1OBx3yfIZcLZbCtrO9Th3krlCllDYCELkIUUnd6Muv0KeG7t/SlaJ+kjw03ZO2mm/rP9b6pZpv03rjPnaoLK3tEfhQ3b+Xd21o0/fKNxdWpQ7dNpeSpEw7S+IK2t2INuO02iXXAl15FbSRLt6pmlU9+3XExKiidXUMGlxvPqCJsOmsuyPi5L1PmsuMMSIzzSLPTtZY1BDJQ1cIU75o9TDnloUyQlYU6EltMr3oQCrcooWCAUkVgPjn9Fur+B7nVm7zUtDumNMOmlJY1WzF7dt6qgv2qrfTFO/jXvLtVW9xduIa8hlu6t3UOusvNOK//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHQABAAIDAQEBAQAAAAAAAAAAAAYIBAUHAwIBCf/EADkQAAICAQIEAwUFBQkAAAAAAAECAAMEBREGEiExQVFhBwgTcYEUFSKRoTJCUrHBFyMkYoKywuHw/8QAGgEBAAMBAQEAAAAAAAAAAAAAAAECBAMFBv/EACYRAAICAgAFAwUAAAAAAAAAAAABAgMEERITITFBBWHhIzJRcZH/2gAMAwEAAhEDEQA/ALUxEQBERAEREAREQBERAEREAREQBERAEREARE/GYKpZiAo7kwD9iay/XdOpJByFdh4Vgt/KYl/EuOtbfBpvZtvw8yhQT+cDZvokGq1/UBf8RrAQeprKjb5TJbiPMtcitK0HkBzEfWCOJEwiRiniHIqQC/HW09+dW5eny27z3q4lR9y+JYq/xc4IjY2iQRNFi8S4jhvtQNHXYEgsP0HSbqi6u+pbKbFsrPZlO4MEn3ERAEREAREQBNTxJgX5+EqYzDdW5ihOwbpNtEA5tU+wANYHyM+2UWbb7jb0mIcyhdSah2CEu6AHxKmfduRjguC+3L3PhM6vhJdyHXJeDMFVSAlyTuPPefNLVorFOw/Oal9Qxf3chT9ZqMvXsas8rX7Hwh5FcV3X9Cpm/BK3yattxv5HpPF85EPRiR5FRImmpDJBNV3Nt0PWYGfqC0De67l9N+p+knnLXEuxKqe9Ml2VrKV9QVDN02Pj9J0DhbTLdNwXF7q1tz/EIXsOg6SvK6qmRqWDWiOQ16qObpvudv6yz47RVarW2vBeVfLSERE7lBERAEREAREQCvfGtltHFOoJVYimrLdgGO3fr/We9mpu+BWjVqzuOpBmN7WKvs3GuoPsGDsj7fNFkdTLt5AUQMdvwgz5G6bqunFfk9yFasrizL+8sfGGbzsF+B+3v4dAd/yM0upZLW7MuxUd9ztI9xx9tetsvBQkmo05KL1YqexHy69R5zxxtVpyse8421gopVyC/X9kkr8xtOjpcq1KHYhSSm1I2GRrbY1t9ikI1ShmCtsB03E9DqpspD2ITcw3Z2O+3pIDk2LqOrn4DM2GTW1jbbglRuB+u23pJH8bfGLBt2XofOdpwdSS31ZEdT29Ek4HtfUONtCodejZtR+gYH+kuDKk+xwV5ftI0Ra69mFrO2/XblRjLbDtPWwFqtv3MGZ96QiIm4yCIiAIiIAiIgHBfbmnweKq27fFxkb8iwkHoya6cZC7qu/4V3O286H7w5XGz9JynRnBosXlXuSpB2/WcT1JDqOmY5uXITJQs1BUg7kt0B8ht0+YnzOZRvJlt6Xwe5jy+hHXU2eoakiI+zdQdjsNzOa6nVjV6y4x2J5kBatiepO/Qjvt2+UmONZmV4XIQWv3YMHTlO/h57j1mrfShXkW5bUotxLM9jsexHfqe8tiyVLe38kXR5iWkY2AaMXArWqtwQm7dObd/EHyM+aMkInxMhghsblX19JjYuc9eXkUUVitSCwTvvttsf5zH2tydR+NmPy49bbrzdt+3QTRytybl+/chSaSSR2n3dsdf7Qcd92ZxTdYSfDpt/yEtRKy+7E65fG2pWChkWnAPKzHcnmdR9O0s1PTxYtV9Tzcp7sERE0mcREQBERAEREA5D7xeGLtI0nILchqtsQNvsN2Ud/yMr3j5dmO/wAZG2x79wK/Dde/Xw8xLPe3nS31L2e5bVqWbGdb+nl1B/nKZ2ahlYItpqcBS3MNxvynzEwZWHzm5LubsbLVS4ZLoS23XsexlU7o372/QKZpuLci6/Coqw60sLNu7cu528B8pHvvfMVbUaxWS0HmUoOvrPH73ykr5FZenY8vUTPX6c65KUddDvPNrnHhezeXZKrct1daLaECcgHhPxczHfZbayeX8Tc36SNtqWUx3a3c+fKJ81XWMerk7zusF+WUlmx10Raj3V6K7NR4lzKGDUhaak6durE/rLDTiPuo6XbicD5uoWqVGdk/3e/iqDbf8y35Tt021w4IqKMFk+OTkxERLlBERAEREAREQDyyserKxrcfIQPTapR1PYgjYiU19s3s5yuFNYd60Z9OuYtRdt0I/hP+Yf8AcufMTVdNw9WwbcLUsarJxbRs9di7g/8AvOAfzgvqKtMWwS3nFPu4aNqOQ92iaxl6bzdfhWVi9B6AkhtvmTIdb7reqM/4eK8MJ5/YW3/3yQVvI8ztJh7L+C9R474lp0zTEYUqQ+Vlcv4MevxJ9T4DxP1neNE91jTK7kfXeJM3MQdTVi0LQD/qJYzu3CPC2jcI6Qmm8PYFWHir1ITqzt/EzHqx9TIBmaDpOJoWjYel6dX8PExKlqrX0HifU9z6mZ8RAEREAREQBERAEREAREQBERAEREAREQBNJY2qV3v/AIVbajbsCt+xCE99j4j59oiQ1svCSi+q2bPGrcBXsawMR1RmDARESSh//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAICAQUBAAAAAAAAAAAAAAgKBwkGAQIDBAUL/8QANRAAAQQCAQMDAgQFAgcAAAAAAwECBAUGBwAIERITFCEJMQoVIlEWIzJBkXGBF0JhobLR8P/EAB0BAQABBQEBAQAAAAAAAAAAAAAHAwQFBggBAgn/xAA5EQACAgEDAwMDAwEGBAcAAAABAgMEEQAFEgYhMRMiQQcUUSMyYRVCUnGBkaEIFiTxNEOCscHh8P/aAAwDAQACEQMRAD8Av8caacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaacaa9KfYxKwDpMsjmDRHL2YIpiO8Wq93iILHvd2aiqqo3xany5U4/zA/knAH8k6fIA7kkAD8k9gP8Av2Hk4HfWFZXUDiQr02PxavI7CbEd6dkSPCi+2pSlhJPiJeudO9eqFNjPA+M+SBpCe5C1I6uejVspdxpxO0fqmSSN+EixRu3ptw5/qswREBUqVJYcuS8c51dR0rMiCTgsaEZBlkRS3u44RVLs5BBLYHtAJPbXAM/6opWFBozV2p8xzYVy57lscTIC3oawLFRjkuLmGAyVkr1fJg4p4T3v8HOc4TFa9cPvHUibYlc19r3TdWsE96EKNDXCnB+5mLsY2JzxQROxx345B1f0dlluNIJLtGmIwuFnkf1peWcGKIKOSDHuYsoX+T219cO/rG2o1l1+PRquzMMShiWktswoXF7ucj4UUwDkUbGq3+c+GHzVHKTsxRv+4+oopoPUWpNFKccYp3jHuIJ4vwbkpGB2IUEHIbXj7O6SlDZjZFbBZInyRjOUDMFJPxk9hk4PjXIMY3FOsAoCfSyZ09/g9jauBIjiixXO9NZNgaeQMZWKT5YsAkhXMXxRivb+qtT3cze2SFnlJDFYFfjGjEgF2lIXzgfplu+B8g6pWNvCEmKUcFH/AJmObMACVVU5dz+W4gEj4yR4sw6i8UwWQkO/pMyJKRhCeFTitnOjnGxGqwkacZsOGYcjyVscrDOER7XNV7Fa7x+tw36ntq5sQ3mOGJFenJOAB4PJSEIb4w2OxyRryrtVm33ikrAAgEyTKhz4I4n3e0juME/xricPq5wop1dbYxl+LVToXvRXOSxIUKIolexg2mDDmWMkBpLntSMD0yGMqtRBt7qqWNDquhekdTBdqRhOaS3IRGGBPgqjOUPcYDZYlgMd86r2NjtQD2y152yAUhkYsMjOTyRVHYE5zgAZJGdZUoN3a/yMAZFZbIYJ3oJjmeBCMKr/AE0HIiDI6dDcrkVGJMix/U8VQfkqdubBFbrT4EU0bscewMA65GRzjbDpkfDKDrHSVLMRw8Mgz4IHJT2yMMuVOfjv57fB1lKLMjzRqSMTza1URyK17HNVURyIrXta7sqKitciK1yfLXKnzy5x4/B8HyD/AJjVv3+QQR2IIIIx+QcHXtc800400400400400401iHerchj6xy2/wAUvp2P5HiFDeZbUSIkcM+PPl0NJYz21FrVSXsi2lZZoJY5oxlarCqCSF7DgG5KFgskTyIWDxo8i8SBlkUsAQ3tIbjxIb2989j3FxVAaxDGwQpJJHG/ME4V3VSyle4Zc57A5AIwc60fdD/1BaT6geGZFlk3B/ybKcasoePZaU4LOyqI8mwrUmVtjFBS3cmIeMaOhPARKSM8RwGaZr0Yquj/AGffdk6uis2Eis17ETivaWX1CYZDGGj9ok9IqyjKBVAwuGz8yL1N0hvPRlitVuPBLDdhNynNC/6dmHkEdizKJInWT2uh7jsQzZzqYgMth41f1VFN2XjuNAZJlOHX3uKMoYlsyIB0skZL51fRxHF9qJxhvWWhJjPFy+RBqxuKeZtv3COoOtdri5TyrHT3PYYa0s4SIyGCK5XtVBK6RfrJKI3aVRgcijA2ccH3Nd5F6ftz8Yk5zUtyknUF3KCV43gmYIW4oyhuKMwBKlhrkxd0YtY09jmGN5zjtjj9QxxLe7onQsogtjwVckkMYtXYSGOMj+6FGoiKUqeTBNei9s3DulCeGa1DuVS3FApNmWsjTRxiP9xIjZ2AyO/LII/AyTa2tpu1ZUq2qVuvLMVEUNlRA7cgTH3YISWHgjsSPHcawDiv1Geiy/sm1Kb9xmoySwkyQAx+3t/4WJPJI7Q/5FZZvhRpIzOf2Y+G8yEO5qDI+Q1qJQqdVdM2eckW97eylgh4WI0UMRxKBVkwr9wpAPIMQD7sAZOfozqiBB6vT+6mL0vUMi07EgCKAeRZY2IAyCfd2Hub29xnu9vbPKFDeS9gTq7HAhRlXDx2nk41XQg+aCQaP9Vh57Gj8FSVYnlDKn6lGxFYrKe9R3Z66WBvZo1VB9E0a0kSxowIU8+YMuF7BpWfPuJVcg6xFNYY34ikbE5GWaWRZGdm7e1QPb8+0YIOe5OvVtbbW4aSVa5RsGilpHACOGRkuTwMebHFGc/xSC4kYsZzjMVvuXicqF/lqZOz/nF0bGz14ms7p1RReJfTT1709WmqomcLEzvHF6rZ/UKyMZPazDJ73H2W52JBXpbLcLlifQrQWJn9xIzIqrI4UYxhiFAPEHtqBWyPqJ9PWmcyhYv+VZ3tC7PbviBnYtRVlNhTrmvgpZV4U2RklzCiymo4oYRy47VXBfVe/wBxCZHcqOuv+c+j45kapuI3OUTRRF6jiaBWJxHieAFSrNlGYTNHkkHswzmY+h+q7FOWzLt5pRJA0rCy3pzmEMQWSuxV+R4ll9obClkbIIG8Dp7prkOA1WYX+S315abEp8ZzAtbamAlfiQLPH4MmPjFDAhMDXwoVcyQrJRYkaMllP9xYlE0h1RJNqOZa8MxJJmjjmwRxC+qiuFVPC9mHIDy2TqNbvtsSxcVUwyyREgli7I7KWYknJOMDHwAO57nO/LnVrpxppxppxppxppxpr5txXitqmzqzdvSsq+bAL3RHIo5sUsV6dl+F7tKvwvwv2/vz5ZQ6lSAQwIIOcEEEEHHfBBIOvVYoQykhlIYEeQVOQR/IIBH86qrfRy1G7UO4esTH4UBYuJ5NZaqzWiF4owEef7fL6DJK8TE+BMDawEO0LURgmHRjWojfFYJ+m7RR7h1TtPf19utbfMVwcNBaitCBuTZLgPFNEwI9vpqM99T99Sr77nsPQ+4PIJZhBu+3Tdv1A1exUsxsyD2gSV7ERUgnkwLEDzraN1ZYbEl4hMyda33U+iiypysY1CeowFZYgB5Ac5AmUDpTnh/pIj3J4kaid26n9aum2mpNvtWtKbtMM0joW98UFS4apeP9rivI5MZVRKAcK3ftjfp5u4j3JNqacJDdZIwrBexexWZ1V+5UOsXFl/ae2VYjB1IbOzWBpLbGmdMYdChV8PfWp7ypbTshChjZfSYty+FZlIzur5Z55IMVwlRyp4uX1H+SJyOjUtdJbt0TsmyALQ6s6VeluscxcPNc3K1YhSxIxYkTK00aoRnAj4g4IzK1CgvV2xdYdRbo7y2+keoatuKwGVx9nEYTLV4cQpijhjnkD+3JYDiBkjie4K9mL/SyPl83HcZn51jOm6y6Nc2NBDlW0Syg2YTTWAsHBZYx5MVynArxHarTiVXseje3MjV+l3TFv6M7ZYi29Km+ipV3OTdoUWLcVvQbwxnV7AX1HKxmWu6k8CuSyAjkKdTq29B9dbFdLto7LY6hs0RQ+6mFOSjPVaKIGDk0LI/JZVBBHpsFB7g6xlNyHaG5tN6tyOnzO8o4tjhtRKsaysllYOeabDaI/vDIqlMBwnMT0e/gzzIqtVytVNB+pW4dXbp0zsL19wuxUo9pgW/RglmDWZpWMDvNKpDzoYeIZT7Fy5Xtg6uen16f6X6t6io29rpXpIdzsxVLVpOQrxwSiSFoIj7I3Dg8XwWdQuCB5+RhHTTtWY6PV2UmdbQQSRENYSDvayJFkRmyJDYLJD1anj4ejIeFzPVTw+FVPHkE0+iupdz3CKpWozzLXMRcyOft4TNF65ZFmPDKRrxcxDJZQBkFdSZuX1I6eSvPYjgjqzWI2RI0jVnlaKR4UMrwgMy5ZXiSQHBLnwQ2uV9W/TVYVfR/hJZbYjc3hbkjXYzterJKV+cZc6vjQ0eDs406LWSq8CsRyMcrXs7KrWKnc+xdFrt3QnT7TQfabw7xy3BG/vA3FkgihIwVVoIkrsqftRwSCWLHUDJ1sLnWG6+kfW2w7R9pEJR7WO11ObSBSSeMtgWDkkEqRlQCQLlmL1TKPG8fpRp2HUUlRVsRPt4V9dGht7f9PEKc6hhjEUUUY8RxpGP/AEKF/wBsY865nkcyyPITkyOzk/kuxYn/AFOvu8qa+NONNONNONNONNONNdHfb/dv/knf/txprRp0eUKY9s3eENY7AvjZnlVGhG/1HFUbDy9okd+lGoghnF4oqu7oVVXt3XvDPS9L7Xq7qSwI/TE8UNd27gSfYbtvAVsZxyC2Uwv7sY8DGpN3m00+ybGGk5iJhYIGTxNjb9vVuA7HuYjnwcg9znU886p41zWuhyWNIIoFa5F8XI9PTeio5FTs9Ple7VTsvynyn33fdKcd2MJJ7kJVihUMpAV1PJSMFSDhsjHjOtXqWnqy84yFky3B/DciwKhWHggjKnz8HPjVdTqqXEch+oPoiTMvotFWdN+JZRkuwbCwUcWHRwKyDQ5ZDnzpKkewFI6myCKQs4rBKIoJQmjVo0KsA9fbXZs/UL6b16i/+HWGafihZY6237zWlxnGEDyOoUD3dm7eCeg+h97Wh9KfqaZQGfdLe3UIjJJwVpLlG0ZSAASzRRwMxXwwZMkDOve6uaPIM/prrpPwu1bBx3IdSZFkF1JAwZGlg5Llbh1ERr+y+nGI6RLex4kRHMENWu+3a93pb9Pdtn6G2y40O2JUu7xu6+khNmte3udqtMs3L0YlllcEIBkRhcqAQMB07LViqz9e7hCZb0O80dt28gsnCxT2kPPZGGAkdQkRw2fc4JBwBrUvimzc/wBG4NMgVjyTwYOsrHppJt+9i0bawLVrYkumOIg2PLXvhT4o/VYho8oJe6NK1ecqbxu9yHeJNpRNxhkv7nbg2t3szPVsVYr0tNQtRlkjMME8MyOyLn9Jhn2510RBsPT3Uxa9PegjeGtUvbnClJXm9a1VjuSkXEkTEzCcdnGFyoLZI1LHWXXLs+tzPA4WcJFZjMlbqrtIsNjBlMF1TGPGM8hH+ihIstpCNcjWvVDPGVzm+LeUOjepd3h3xt+s3bt2hFAlSxt0bpFVeIs8QmrQcFRbCOxlMpJeQMYy2DgYzq/oDYq+07hR2xgdwR61mG7Nz5LiWT1IJMMSyOnppxYYRkVgMk52i9VsrGckwnQ9AXJKmKmab30XFpoz5gWyLNzs3x+WkMUdHqQxDKRg1ExHp37qVEb2XnfbWKN6ttNWvaryGS1th9JJUaQRoYnAZFJZCGK8gQOJ5DyO/JdBbFKXc53hcNFt+6pzCvhWaGWIsr8VVgCzFTlR2z4zqzM37f6K5E/0Ryoif7Inbkrjt/v/ALnOo113caacaacaacaacaacaa6KvZFX9k7/AOPnnh8H/D/HTWm3VkuNUdR3U1TMeNj4G3MwkqFqI1RCuZgsgF2T+zFHZ/0p/wAvZe3yneNaxSvv+8A4AW1ZcrnBAlcT8h8BWZ84ODn+O2t+nDy7PtBDH31oVRlGSGiBg7Dtk/pEEfGO2fOpez7eNIrEksK1zmI4Sp3RP1fPfv8AK9kTt9/9ERe/xzYzailT1IiDhCoAPIEg4PuwQMFTlSc/nyNYKSFlmWNoxGyFZG9wJIPdSfHdj3OP25OdVO/rQ0+3dRbD/wCP+lsLssjo8/0Tnmjuo2RjeOzskuKTXU68pVx7MUHBEf2trSVZL6FX3kqHZRob5gw3Md1ewBBYDnts/UFKlciJu/06W/Tm9LCRrWuQpLF9yFJR5XmhYQu6q6xl0BZGB2BGvpsVk15glUbjELVczMfVkepKIZhW5YcwokqesFLJ6yox4sFOZYvVbp7KX7d3RrmxNsDEtOaM0/IyO8rZtNPsj1dric7YC1qWXrKy0yLGcUsPeX8YvoBW/UtRHc20iThAwW8bWsXWIvco+VzZKVARmJi2YL+4WQ3rElCpLlREoyvEvIRmPN9T3N5em4qLmYRV91t3V/U5Qh56tSFgkQ7mULHlpCMEEKo8nWmiBYXPVJ1PbW17rUVvcdNocsxnZm0M+EGX+VLmuJa/Wjg4xjOWRWjq1qZVoSintxca2Mp91STTznBrBFirGO/7BtuzdBWt2u7fVG/QUNygoSPXUWq1a3et2GeTlmWKZ/XsEzRmNvRmHE8mLHc9l3/cB1JVWpbmWBp6plEcpCTNHFXT02w3pyRcIoVeJ+Skx+4dhiR+A9HGuSZRGtMsyDYOwJAZ4p0WPlWWzn18MrCoQoxV9alfFJHOjBjOEzHMIJnoqitVzV5YT6i7vDVSlt1LZ9orpGIiNt22CGTgARl5WV5ScknIYMGx3PY6mazSM8jWbL2p55GdnezcmscmY8gQhk4ghu+ApU9gR41tshVoMi310LYiQQSBbv7AJjRekz+VEq8mpbIwxfCqNrYVQRiIxWtY1vZW9kROSr9LLFq71p0pA8skivuEU0oLEmRYv13Z+/yEyeWRgHtk4OgdUwxV+m+pZ1jUN9jNEpyAEMnOPCgdlGSOyg92x37nVtBPt8f3+f8APzz9Ax47fPf/AF1ytrrz3TTjTTjTTjTTjTTjTXRyd0VP3RU/ynGmq3XUFl+yNTdem+SYTCdc0ttaYbZZRFh16Wd9QxL3CcXlkvKmpJJjjySOSON45NWA8ezikRpoDpKPPGbzl1n1NNsvXW5UYnirmSDbZhYkrtYjWGeKu1kNCrIWbhFIUlUlo5AAysjkCdOldo2/dekaElzkJI5L0caeukCTyxzziGNp2ikEDq8kbL6gMU0fJS6OFzF/Z31ONmYJh8rKqnWzCYES8tccqsryi1LFmzrSqsn19qq4zWwJ1pFJBkscEoj9zNVfJwXIrH8xNnrfcdph+xqCbcbkyNJFO6xV6zQ2GaWBzccissjK6gq+AwPP3HsdkofTza91sl7e5wVDGhaenXEli2DEAJESFgjyKArNzjcsWAUYX3DXtM+uvrvKLq5my8K93+VVdpAyGtg2M1hJEKNKWIc0FhYIbRUs2eqSJBkgr54gkEGYsOaRGsvNz6h6nqbvW3CTYS9WSFacckMyitIGeCVrImlCBYo+QUSFArhWZDgLn523obZ7+32KkPUUCW4pPWFWWCY2o2/6iOOvLBXSQLOEjzJCryOnqIpBbPGttb41U7V2hu92i8w2fhGK7As1HO1Rb5pcTckyuc6qvsjbTZRBxqsjpbwAvCE9BY5OyczuV1Ha2Uq8mId++R73vN2rQsxbdATLNI330XpT1oaySRIsiNO0IlkmVpoWWD3BQLCllXB0y5sO1bJuVyjetyyyQVkWWk/q1na5NDJJ6TiASsgrloZRzKlu8DhGYsu5PVWIF6atSwMT09tPYV/eZHhlJksKwy62Jdaqx1bYomTTWNAGEyuU0ScM9Tb1FKIM6uljIApoBGFenO/W2/8AUn9QtUerRXavuDvEuz7QKiRSVU5lI7E80rW2mkhBauQOJcDkzE8TJHS+z9P2a9aenG0MNEFnszvYm3GxYZQGMOMVokjkJMrEJGoAUIwOT9mDtLrdqswhVtJSdPlnDmVfu6a3knvIETJJvsCS3Np477wpjDQjGCY0DiBVhkI8wxs8+RPW2j6aGKWeePrSvYgsAWq8YqSx0oml4KZplrdj59snFgykEE63Kd959ojt7O8bR5i9VLIsNMOS4ZARFxPb3KzBgxIxjW4boNbt/YXVD0QO3ZX4rW5zXZXl+UWldhfuiUcYFLh+Z2VaDylSJLnzY4ACNPeI5YrTDYoXu7KqSx9H9r26f6kbdPspuNs1JLbVZdwC/dTMlOVmd/TVFAaTLIOKkLhT8jUd9eXXr9H7pFYeBrlp60UywAiJM2oyRHzJZl/aFkYAseQAAUE3BGJ2a1P2aif4ROdx65m13caacaacaacaacaacaacaarO9am0aLU31QsipcllrAj7I05qnIquQ5/cayYI8ixmW57EX+W0a0cNriL2RfVb4+SovjyR9bq00HWVa8i4Rtoql2XJbKS2IgxzjsuOJA7kAHHY56O+m1Gbc+hpxXT1Go7td9RcDPB4qcg45+Tzbv28cT8ZjJ1zaIrts64flOCwYhc2xok/I6eqhkjRqjK5FiWDNs4tjEeo4sstkStgkNIe8MmWwR4ayEJLUiRvte/x0pZ6t/hNtW4oK24oQeUUTRyRiaF8FoyquwKp7lZklCFowNZta1x5a80Ms0N6g0b0pQSGikjdWiU8u/FGHJQ2QcGMsqsQdAGq+nHab7SRldRQ47SLJprDBcyxmrxs9NlFx+W5GOdYSsog2NZk/sLSdIkJLrrQY/Zvj41BUBJJ50c0ipuPUexzy2NqFmerQgh+2W1Pf/qVe1RtQSSGWpI1yoJJIpYoasqsUlgMhYKSskYkc7tepUKs7QwX94nlh3dJINug2kVNyhIhWsQkUj+g0DzzMVVopZH4tgMrrn/W/S9qLQ2Q3WzKPBL82wMmgbPjZfe3l/kcqR6GSTVkUlpUK80QcGwIFFW2SBFEtacijqyRXRmq7ZOnfqpDFPHSv71DJscO3U6m1169CCL7azBWWNw4rwvIY43QRV2JbkhaecvnIivduknutLYq7fx3SzblsWp5LUrvKJJCWX1J5WBaQMC659jqoj4rkHxxM2HrqRMgV1lJxfFrq8k3DhZYSZf1iWORXNs+ZISdPhSZTXnq41FIkRmT3SbvKbS5kh9B0p5UjvrMUOo7k96exFu24rA5gXbXENg1ataE142EcuXmNh7IEjQFIKkUXqFuQGtt2DbbtKBK60560KNmVpUyplZ2EzYIAWJVWLPFhzkdzgr49zpqwrOt07sdszYwJkHA9dS5gtaJMx4WO+7ZYmYUnsYrJchz6itZF8Y8t4wln+sMCp7UPqFsb9rZNi2Srsu1yRrf3Na83UUwuy21hkgUlY5ndEjNq0GPqwoGEJUyYRjgVJI7z3J5ZY1eOu0sdBSqKXDgGRgysxEaMvIOwznIVSPO+DoOsA5J9SfVdXXq1YWEao2xkJBdu3olJj0LG2ORrezWoqZS5vw1Pkioi9/JOTL9BXW11KJIcmKvtl+Yk4wGb7eFeI89xMST3xkgjvnUa/UeB6fTEvr49WxuVJFIbkHQCxM3u/kxgj5wDjsDq0rzsTXPmnGmnGmnGmnGmnGmnGmnGmqN/wCJa2VL079RjpOyCMctdHyvppsYizBeKKWZj20ciiS0RXeKeYIOQQeytcrhuKN7URVa5I96w6Ri365UuSKj+nWNUxkHuI5jOuSBjB9Qgg57ZHjzJvQ/Wcmwbdf21chJraWyQQT74RCRg9iP0Qf4bB8jOoc60+o+uGVwsbzlhLTHZBIo4ssxllvgwSKjZDlJ5NO/sqscgXeoL0/Uc13kzxWBOv8A6SWV2+xuGxfququZqQUREyAMf0f7sZUFQo8MAAMHIkzpvrbb91uR1NxCULTt+jaDcq8wB8SoxJjlIIGf2kE91wdTxwnbOFZkh73C7ilsYMkDSngx7GN+ZQJY3ekrHRUIjjBejUUZGL4vYvqDc4bmc4yt7XuG222M9K1GD5jljZGRgfcvF/7Y7sV79/2DiO8zS4MSRSSKXXAWRArwSx4JDK6Mw5e0DA7nuCobI1BjrIzDcKbI1MHVWtMGzHFJBvS2JKu8Po72ePwvIEj2Nle2c6FLwvGY+NPu7KNbVEeeefkLxxCNakdsWwlv6et0m2xdVP1Bv+6bXfghWfZoKd+3TWQmpMGlhr14pI9wuPdFetLWnaIR1uTqSGaWHTd6g3obns77bRqW60kpjtTy1o5vTDSxr+rJK8ZqwrAZJFmVZSZgoA7BDgLe20NUWefwINpksfXllXThyKSTbFZFp5rWOGcDny3DJBjWDXI1xBT0aL0/TVsjyXxTCbB071HbrzbhRoybisiFLkFcNLOqFcNiIH1GTBwOBZgQwKkYOt9G809nrmvfkjevMHjjkdgnuBICmRmXB+QCME9mHzqUWCb3q4FYCJVn/iGWyE2SWwiSBEiEYrEb7oMiMpoxwojHKqjM5Gsb2RXeKN5rlzZL73x6sU1YRuoFWVJEkjb5DpJxcFv35ZATnJJBGsay02g+5iki+3lbCGNlcSAf2A4ODgE9gx4spBJI7bHfoOZOHan1BN8ZgaYSUXHenqxDGi+PkGtHc7Ew6vjtY/uiecyLAMb1Wp4laJyN+Gu7dkf8P+0T0r1+aWIqi7SER8HiZJrVdnAJH7lEXEjtgAAA6g76y3YW2naaUXph/wCoGWUKSWKx1plUsfwGlOAfHfx83CudS6540400400400400400400401Sv/GS6ItpmlejnqzooDyh1FtPMdPZrOA1Xkh0W46WsvsWlyvFUcKAPLddPqvXf3G2bfwhfoUyq74kUMgBGeLch57ZUg/8Awf8AtqtXbhL3AIZce7wSrAqp+CCC3YkEkDBzkNSRsNm2c3G0a2e9PWhNY1UVEczsiKqd1VezvhUVU7q5e3fsndeWHpIfY0asAxLZyQQ3bx3z2Pz3H4Gc6yKThM4DiQj4IHH3ZBDAnt2Ax5APfvgiPtPvnbGAWc6ZiGa3VTJIRHmLGkFd/Q/ya9zHq5iuVfFHd08SeLUMxzUaiYDeuiemN9VF3TaKtoKAVDRquM9iOShWI8/2u2SVwT32Xa+suoNnRxQ3OaLmV5Rv+smB5cCUMokOcFlwSDjv21kbPuujqc2qKsfkez59ebGhetXGx5P4bmTJCjWMdzj1fgaTJdGKqPCQrIqj83oFHd++v7R9K+hunWn/AKfsMDJcbhKLQFxEQEOqBbHIIqlQFbBYnC5+Rd3euepN1jAs7k0YrkOhrZqtK5BVeRjPuf3Dt2TivLjnWLbHbWfbACBuc5pbZAaB2DDfdyHyCsG5EY8alQbO6eLUVzjeZHp+nzd5dly0XTuzbTLI+07XVqNPxMzVIY4w/E4UsoGMeQOOBkZIJzi2O+btfrpFe3KeRYjyWOy8jgNg5VW84wcsx5cge2uZ4tt/MsQhuqqHOcmrKZWOIatq7yxr60hXIT1BpHjyRIwatI71kaxiHV71ex3Zi8oN0/tdy191c2ylNYC4SWapDLYIDLxBleNifAABY44jGMaqjerVeAQRX5ljXDARySrCHw2QkfIYbPctgFiTkfm8l+Dh1rl+RxeuLqkygtnKqri01FofErGYpHxpkvE66+z7NRRCPd4p+Xx8qwOJIaJHMUjka5WnYfy23adtqbfBxrV44Fbsqxxqns5M5zxAzmRmbPz2zkjOtU3fcbN+VfuJ3mKlmJdmY5IVUPuJ4+xQMZ/k/Grw/MrrD6caacaacaacaacaacaacaain1v9I2uOuzpU3X0pbVaQOJbiw2Xj63MWOGVZ4lkUYwLjDs3phGVg33GGZZXU+SVw3EGOQau9mZ3t5JkXwjIxr0HBBHkHI+D/AJH4P8juNfkJ9W3RT1AdCG88x6b+oejJS5ZiMw7q+0hx5Lce2BixJBBUue4TOkMGOzxfIow2yopweoWvkrJpLUUS4rpsMNv3Q+4BS+QPBLAH84AOOxIA9uRnGRrIIUcBlIPYBxnBQn8jJIBweOTgjwSc6h9PgiiGK1gUY0iefdW/qf37r3c7siucn7fv3Ts1PjnuT28DtjP8HyO35/8AfB76+JFPx4GGH+AyeWe3x/8AvjXG1kKIqs9uit8l8V9Psvf+/wA+Kqifv8IiL8L24khRhyU9v48EEj/MfB/x85+PqJyR7hjucPn9wx+O/fxkjGe2cnXnNTOtG+rGao5Kt791RfEniidkVPj9fZOyORfnsiKnZOYX1zBO4Yco+2B4YLjlkHzjvkjwMk+dZWGJ5kYqSJGwoP8AeOcLj4Hjj2xk+fyM9dLHRf1KdZO68P6f+nvXlhnGxc0mjFFAxzwUOP1TDDZZZjmdyrHx8cw3HwvWZeXkxGjEBvtITZdpJgwpN3FNWnmVYwzZAyAhHbJ8nPYeWBJ7jPb4FKxDYgiaSfACdwGK5Y+AoIOf8sn+QOx1+wj9NroXwL6c3Rxp7pTwSUO6fg1OexzrM/apEk7B2fk8h11sDN5QeylCO5vpBhU8I5DlqMbg0lL6xG1zXLlgAAFHYKMAfgDwNYAkklj5Y5J/JPz27f6anXz3XmnGmnGmnGmnGmnGmnGmnGmnGmod9Y/QR0o9e2BB191QaioNiQKxZRsXyFynps5wifLGgzWOF5tUPjZBjxy+I3y4sWY6qtFCFltXTxDaNPCAysrd1byp7gEeGX5Vh5BBHcDOdeqSjh1OGX58gjOSrKcqyn5VgR8jBwdVit4fg59E5NKsJujervZOAhIV5K2l2XrzG9jhiMc5zmRzXmNXGvJ8oIU7Da8te6URvZ55JSornUDCQcq/wRhhn+RjuP8A6/GO2r1biAAPApwMexyoz278SGHY/HjHbHzqEsz8GPvz3naH1taZNC8lRZB9R7DhSnD+3kkMeXTwscqdlVnvnN7p28/nvyk8E7ZxIigkEDDn8Zz7h/OMYH8arrdqgDlWdjnJAdACe4/uHtjz2741KnR34N7AaW0rp+/usnIcqq4xhvnY7qbVNdh554UVHEAzKc2yfNHwVd4o1Thxspla5XM9B7Wu5ZHZ+bl5bczBgeSRokQPxjkTIQCOxwAcHz4xc/1vhGqV6UMZX9rSO8vHyc8QIlJyc9wfABB+bUHRt0BdKHQTghMD6ZNS0OBgsRxEynKntdc5/nEqExGgm5nmtihLu8eN/mWNBecFLWkKZKqrgsI5i5KvVgrLwhjCA45HJZmx45O5LNj4ycD4A1irNuxbfnYlaQj9o7Kij8IigIv84GT8knUyuXGrbTjTTjTTjTTui/ZeNNONNONNONNONNONNONNONNONNONNONNONNONNP/AL/3xpqLNjK3zU31k7+AYmTUEvNWBiSanZB4EyDis+08YlmOisIR0DZ1LiBkWqstmQX1A5DItawwkQmGksbxHIV+wrzQ/dcUkitFJftpCEVzHIpy8eech5gcORVBgDUoVNi+lt+lHIetd82jc16faxPT3Dp9bdJt/qxfcT14txqSxMtO6Ekq0EapJMtloFnstG7Oud8Zq7MQotjZzL0MssQw5dLY28K3jRzkkNex/uYkOMMhQiH4CfH8A+md7CDcRjXplo2dkDOnpsV90ZYPwJYkjkOxIAABHbB7ZPfUcXIq0FqaKpaN2tG4WG16ElYzqEGXMEpMkXuZgVc8iV5HAIGv/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHQABAAIDAQEBAQAAAAAAAAAAAAcIBAUGAwIJAf/EADkQAAEDAwIDBgQEAwkAAAAAAAEAAgMEBREGIQcSMQgTIkFRYXGBocEUFTKSUrHhJDNCQ5GywtHS/8QAFwEBAQEBAAAAAAAAAAAAAAAAAAECA//EAB8RAQEAAgIDAQEBAAAAAAAAAAABAhESMQNBUSEyof/aAAwDAQACEQMRAD8AtSiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgItbX361W8E1lfTxAdeZ4Wnm4gaciwPzKJxP6ceabNOqRQ/aOPWm5pBFdoamgk3BcG96zIOOo3+i608TtJmnjniuscsb9wWtI/nhTlGuOXx2aLl7frzTtfFz01xjc0HByMYKxariRp6FzhDVtnxtzMIAz6blOU+pxvx2SLV2m/W66U0UtLVQkvGeQvHMD6YW0VQREQEREBERAWj1jT11TZpGW4v7zOXNjPic3B2Hzxst4hQU9vlDVXepePzehqAH5AkkdE5o8xg5bleItt5oYeW32YVQzsYqpjnO9yuS17SvodV3mBjnRmKsmb4SR0eVzLK+ujHhq5x8HlYddVIMdFqOOoLJtMCnhwXczY3O+WdslZFLV3o2+AixTiZziDHJER3X03BUZz3y6sBxWS4+S1777ci4k1T8/JVOkxFuoJd30s0IG+BGB9SV4yWyqna41koh35gTIxmD7+JQ+2717nb1Dviv6+vq3jxVMv7ipYu9J7tEkFC2niZeW0zshpEb+cvPoPLdWc0lSVtFaGR3B7jLnIa53MWDA2JVC+HkL63WVjgcS4y1sDd9+sjV+hwVkZyERFpgREQEREBD0REFKuN1L+H4j36MDHPUmT9wDvuo1cNvmpn7SFJ3XEirfjAnhhkH7OX/ioblBbzfFY9u06YFQOZpI6YWre05OAtrUODZC136Sc/NeJLHHw43OOi0xtgDwhejdyvrEbnHLjt6BIQds7pUiR+BlL+J4maZbjIFYx/wC3Lvsr5BUr7M9L3/FG0kjwxNmkJ+EbvuVdRIZCIirIiIgIiICIiCEuO2lBer1R1LQQ4wBhIHo44/moTuXD6pD3iF3ixzYKtVr/ABE2jneWiNpIeT/Cou1hZaqCrZf7IXuqWxCJ8XKXtLDnDuUbnGeg9ljUt1tuZ3GdK93nSk9I/uxLE8OA5TzjJJx9yuRlopWSvjcf0vLevTBwSrOXGMS0nLTUUIbJH/ewsDeXmafEM7jfbBGQuJptEUdDGDS01ZJ30beeRzg4tOfEB4fr5rUlntLlMvSHZLfJFI6M45mnlO/mt7a9MyzSRNlcGl7ebHnhdqLOaaNsM1OBC0AZmAOBgkjPoOgTS1skqqt15uOGQUwMVOQzkDhvvj08vdZt+1uWeokzs76bbb9YPqMEmKkfgn3LQrIKJeCTYpauuqIt8Qtbn2Lv6KWlcLLNxjLe/wBERFpkREQEREBERBHPHG4PtWmaesazvGCbu3t9nNP/AEoYsvF2Glt7xcKaQ9xhgaw5LvTCnLjbbH3Ph5cGxN5nQFs+B6NO/wBCVSq4SPimcOVhIODloPMPdcsvFLlynbcz/ON6TjcNa2vUlsjNJVGlikdiWN+GuB887rl73r+ki1HFTUcNNLSDlDpe+eMOxuQAeUAY6Y3UR1kjZJeZkTIm4A5WZx067rBepj4bMrnvv/FvklxmOukz3PXlC6Ed9UQua7PM1gyeuy5m8a9/EMZT2ynbHTkku5h7+ijkle9Odwpj4JP6uy+X5NLe9lyokrrXfKuXO8sUbRnoA1xx9VOSh/su2uSh4cGqmaWmuqnysyOrGgNB/wBQVMC7SSTUYt3d0REVQREQEREBERB8TxMnhkimaHxyNLXNPQg7EKnfGjh5UaXvL5IWOdbpyXQSY2x/Cfcf1Vx1h3i10N5oJaK6UsVVSyDDo5BkH39j7hB+c9REWkgrDe32VvdS9nOyXGZ0lpvFwt2f8t7W1DB7DOHfUrlj2XJnyeLV4DPa37/71UVmLcbuOF23CjQ1fr7UsdBQMeyiiIdWVePDCz/0fIfYKe7R2XdOwSNfd75dq/H+CMMgafjgE/VTdpfTlp0taIrZYKGGioo9wyMbuPm5xO7ifU7qKy7Tbqa02ylt9BGIqWmjbFEweTQMBZaIgIiICIiAiIgIiICIiAiIgIiICIiAtJI66Rzv/srZYjLgFs+CGE9cHzHx6Iilm28Mpjf2bbOmjeA18jpA4jdjnBwCIirD/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHQABAAIDAQEBAQAAAAAAAAAAAAUHBAYIAwIBCf/EADgQAAEDAwIEAwYEBAcAAAAAAAEAAgMEBREGIQcSMVETIkEIYXGBobEUMlKRYnKywSMkNEJzkuH/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAQIDBP/EACIRAQEAAgICAQUBAAAAAAAAAAABAhEDIRIxQQQTFEJRof/aAAwDAQACEQMRAD8A6pREQEREBERAREQEREBERAREQEREBERAREQEUXcdQWu3OLKutiZIOrAeZw+QUFUcQ7JGCWSSSDuAAPqVNwbiirmt4sWilYXOhkcB2dkn9gsKl4zWqdzgaGoj5f1Ozn9gp54/1NrTRVoOMFl8MSOpavkzg8rckfLGVJWzifp6vGY5Zmbc2XM9FfKf03G8ooi1aktF2/0FfDKf055T+xUuku/SiIioIiICIiAte12+sj09MaB72Oz53sG7WYOT9lsKFByfe2V0Qke0zvLjnxQOdrv26KPpJKkbSQta3bJy5e+oH11qv1wZRzvYI6qVvJnbZ5WGdYVsIBrKSmnGf9zBn7LwdY1je2ZUiTle13mjLceQO3J9NxthR0lA+IlwMzCRsI2vx9gFmVmtYJIx41njJA2c15H91FnV1Bna1uGe8r8f1JlnhTt9clZHTSSsqXmUDYF5Dfqs7TrJoZcVFSPEePy42ChJ9V0bWNDLVG7m3y/J+5XgdZTQNAoKSnhP/G3b6JjpdN7cauO5tbaMue5mXznaJvux6ldBcO5a+XTkbrk4vfzYY4+rcDv6ZyuRbHfbreb/AG6mmqn8k1TFGWsOM5eBj6ruBoAAAAAGwAXp4td6WTT9REXZRERAREQEREHMPEembFrK8R7Bzqp7wP5vN/daDdKcSN5CSB3HUK3eLlC+PWNVK2M8koY8HHXygH7Ktq+nzINsFeTkntx9VATQhrRnfbsoesYA/GOqkb7Vi11UrZ3crZoi+InoHtGOX57FeT4/FjD3AB3KCQfhusXj621KhXyDnDT6L7cA1oPcZWBc52MqpYS7Ej+URjHfqVnActLFk5wMLUnjG218IYPxnEOwREZAro3n5Hm/su4Fx97O1AajiLa5S3yx+JKT2xG7H3XYK78U6UREXUEREBERAREQaPrSjiqLliZgcHRtO/xK0mv0rRVEviYIceysHWLg2vps/mdE7Hvwf/VVFz1ZWTMM9pia+KimP4yN4w7w/wBQ+G+fkuOWeEymOXus3juUuUnpD6p4aUV3pzG972kHma5p8zSqdrKG5Wa4VtqudI7xXQiOGaSQMYGjmAcT2Pcdl0FJeaeuovxjbhVUtPJ5mNdEGOaBsd3Doe/vCra9Wu6XfUk9fWVVNHacmmYRIDK5sbScHA6nckLfjPTEjT9PaNqqsMuFzhcJ5ACxrnY8uNjj3/FSrtLkPOXhpHVuOi2KjApYRBXVErTG0wwmCbmHhjHXp5mkgZ9dlHPr56vUtPQUr5I2UruarklDR4rfQe7t6Lnlhu7bna0OA1ljo9VSSMGXMpXZOP5Qr/VMcB6qGuu94kp8lkEbYi7uS49P+quddOOy47jdll1RERbQREQEREBERBU/H67VFgoLPdKVgeYppI3sJwHAtG2fkqe0XriwCpnfc5jTVEzS14lHlcCemeivHj/Zn3fh3VOhbzSUb21GB+ncO+hz8lxDXNcyVzSOhXDk+nx5Mpnfcbx5LjLj8V0Rba3Tr3mno5OanLi4N8bLAT1x2B7dFH6p1fZbS+JkRjMbyQQITLv6n8w2XPgcRnBx8F8PeD+bJ27rPHwZYft/hlnjl8LUrdRUcs9VNT1kZLpB4fhv5Q1o93xAKiblqSlhomRUzWeLKeeRzPM9zv1Fyrkle1O4hzeXqp+L33lbHT72p1HX/soDxbBfKgNwHVEbAT1OGkn7q91VXs02WS08L6Oaobyy3CV9XgjflOGt+jc/NWqvRjjMZqOOVuV3RERaQREQEREBERB8Twx1EEkMzA+KRpY9p6OBGCCuNeN/DOp0rdpKmlje+0zuJhlAyG/wO7EfVdmrHuFFS3GjlpK+niqKaVvK+KVoc1w94KD+a80RYSCsZwXZ2pvZ10rdJXy22quFre455I3CWMfAPGfqtQm9lhjnf4erZA3+KgGf61UcuY33Vm8D+G1Zr7UDHPikjsNK8GsqsYDsb+Ew+rj9Bv2V4af9mDTVHOyW93a5XQNOfCHLTxu9x5cu/ZwV6We10NmtsFBaqSGkooG8scMLA1rR7gFFZFNBFS08UFOxscMTAxjGjAa0DAA92F6IiAiIgIiICIiAiIgIiICIiAiIgIiIChJHXSOd/wDlWyxGXALZ8EMJ64PqPj0RFLNt4ZTG9zaTpo3gNfI6QOI3Y5wcAiIqw//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHQABAAIDAQEBAQAAAAAAAAAAAAUGBAcIAwIBCf/EADoQAAEDAgQCBwUECwAAAAAAAAEAAgMEEQUGEiExYQcTIkFRcZEIFDKBoSNCUsEVFiQ0cpKisbLR4f/EABkBAQADAQEAAAAAAAAAAAAAAAACBAUBA//EACURAAICAQQABgMAAAAAAAAAAAABAhEDBBIhMQUTMkFCYRRRgf/aAAwDAQACEQMRAD8A6pREQBERAEREAREQBERAEREAREQBERAEREAREQFHzHmbEqaolio4dLWG3ZbqefPw9FWnZsqaiaNtWcVhaTZw6s2HpZbDzFSxTdS97Gk7i5Cg3UTG/DqA8yq04yvhnpHJFKmipRYrWzV7aaGe7JHWbI4kkDmFmGHMYl+zha6O9tWtguPHipon3QOft/ERw9FjyYjJpOkgjzKiuO2dc76Rjy1GL4fUxtnMLqd25cC4H0txXpJmKqhcRTmofvt2rLEqMUn0lp4cyomauefvcuK65S+IVPtF3wjM1XNIxksLn3IFnCxPlZXNULo2BmqayZ2+hjWjlck/kr6veDbXJCXfAREUyIREQBERAEREBD5qmFPhLp3XAje0kjiLm35qpfpj4bzQubexcO9XDNdO2py3iUThcGB5HIgXB9QtDxe+Rnq7iWGRuppva3iLrO1eWWOaros4cKyR+zY9Q7rgH3L9vuG4ULOXwTfaXs4XNgqi6urqQHT1gaPB6i8WxfFqgD96aLdzlUeoUuadlhaZri1RcMUkgkLdWp2k342H91EnFKdt9LtYv3dyojKidrn6xJI9zrlrnXt8yvn3icm3ZjHHY3K9Vqm/Yfipe50r0XPjmy6+eNoHWTuF7cbAD/auCrPRpTimyLgzALF0Akce8lxJJPqrMtTH6UUJ+phERTIhERAEREAREQHjWt10c7LX1RuH0Wg2Wjj2FgCbW3AXQRFwR4rn4N0V80DvxuA8wSsrxP4/0vaP5GDXva6MNva/gsOtlOiw8Fg5pnnp6d1VTxl8lO7UY2t3c3gR6bqKocaiqMEZM+brJGRtdJYfCSSN/qqUItx3IsyaTpjSXyyvuAOaw5AeIue9RmD1ctdiM7pNbqeJ72xvIs15JPDkBspiaQyPZEB8RAbzUnDY9rJKW7lHWWV4fd8tYVDw0UsTf6ApNeVJH1NLDEPuMa30Fl6rfSpUY7dsIiLpwIiIAiIgCIiALROKwmmzBiPYLxFUyOsOIBJW9lo/ObmwZurQ0HUZiSL2uSAQs3xLiEZfZc0fMmvopU+LQ1ULpqRj5Hb9g2Dm8nA8FrfHIYZ8eqhRQzMa9gM7NR0F3E73t4fNbIrsKppK6eZuuMzm8gaO/l4KvYq2moKinpXucevkuxhcXEcBuQqOnyKMnsLmSDaW4wm1VPFSMkp4wymZ2Bd+7R3EgrPyyTiWKYaBE4MkqGMbq7xrAuvCqw6kdKWkySMds5vD6/JWPIMTJc4YFA1o0irYLDuAN7fRSi1KSS/YacVZ1QiIt4xwiIgCIiAIiIAiIgC0n0igQ53rNwQ9sT9uLTp/59FuxaM6fpRhGO4diUALZJYDHJbg8NdtfnuqmtwyzYqj2WNNkWOdy6K7Xlss0hbp1E2DNW5soyupwZYnRta1zW7ahdVBuaWMna/rHR6Px7g78LqRqMcw6to3TyVscIBtpMlvlzWH5OSL5izW3wa4kqP2oaI3zNY6+kjcbhWLolLqjpJweEjssL3/ADDHG6of6y4cXujZMyKMON3Bp7XkFsz2czT4tnyvrhGbUtERDq43c4AuPO1wrml083NNqkitnzQUGruzpNERbZlBERAEREAREQBERAFqH2k8OkqcqUlYyEvipZSJXtG7A4WBPK4+oW3l8Twx1EL4Z42SRPaWvY8AtcDxBB4hAfz0qo3Nc7Sb+Si5Q4E8V2BmroCy1i0z58KqKrCJHG5ZFaSL5NduPkbKky+zLVOm2zRD1XiaI6v87LtnKZziwnWLldTeyThszcHxrFZYS2GeVkEMhHxhgJdblcgeYPgs3LXs35bw+dk2N19bixab9UbQRHzDe0f5luvD6Kmw6iho6CCKnpYWhkcUTQ1rGjuAC4dMhERAEREAREQBERAEREAREQBERAEREAREQBQkjsUjnf8AsrZYjLYFs9iGE8bHvHnwRFxqycJKL5VknTRvAa+R0gcRuxzg4BERdIH/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAICAgMBAQAAAAAAAAAAAAgJBwoFBgEDCwIE/8QAOBAAAQQBAwQBAgQEAgsAAAAAAwECBAUGAAcRCBITIRQJMQoVIkEWIzJRYXEXJCVCUoGhsbLR8P/EABwBAQABBQEBAAAAAAAAAAAAAAAFAQMEBgcCCP/EADQRAAIBAwMDAgUDAwQDAQAAAAECAwAEEQUSIQYTMSJBBxRRYXEyQoEjkaEVFlKxNcHw8f/aAAwDAQACEQMRAD8A3+NKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKVgTeDqFwjaO2w/EZ0sFrn2d2kSJj+IRZgh2Lab5gQXWYW6IhS1WK0QCOWRaHB45tk6JSwPLOmIgdS6r6w0zpS2t3u3SS7vbm3trOzEqo8hnmSJp5SQxhtYELySzFSDsEcYaRgBP6D07f6/Jci2Rkt7O2nuLm5KFkQRRM6QoOBJcTuFjjiDA+ouxCKTWemuR7Uc1Uc1yctc1Uc1zV9o5FTlFRU4VFT171tisrAMpDKQCCpBBBGQQRwQRyCPIqA8Eg8EEgj3BHBB+4PBrzqtKaUppSmlKaUppSmlKaUppSmlKaUqNXUv1abI9J2Hpl+8GUpWfLcoaHGaqP+a5dk8tEdxGoqMRBlM1FaqHsJZIdTE9fKnCVWtdCa51DpfTto15qlyIEztijVTJPcP57cEKnc7AcsTtRRyzgVLaPomo67ci106DuuBukkY7IYEzjfNJghRnICgNIxGERjxVc1N9UHcPct47fEdqqTbjC5TWnrJe4c6ZbZTawHO/kzvy+AWmpa0chiK5GBl3QuFVrJju1Xr8/dRfHfU4ZhHomiW1tCRuS41Zp5ZJkxgyJDbtBGqluFJllB8A58de0r4S2LR7tT1We4mB2tDpqRpHFJ+6N5plmZnU5BXtRuONyjOKjHBz/AGnTdHNdwpt6K83IyfwEy+9mWi2t5ashke+DVxZRzSBwYcHuQVVR1gYtZBAMQY8QTRo5eK6rreq9VanLqmoL3JXwZRbkom04ULGJZJPUAFCx7iERQFAUGukWel2mhWEen2bduCMMIhLhmyeWaTtKmWcnLufU5JyfFWS7GddeD29vWbYXNTn62Q6iPYQMhmYtIFUflTm+MMebbDkSIBJsUiJFQTJA5StRrCx0eNXP+kOhfiHDZaTZab1BNOVikjsrHUpLWdf6W3+lBeuA8JkgULEkyS+tNglVWXLcZ6r6InlvLjUNIWJu4HnubITIWWTeA8tsp2sI5iTI0TopR93aLK2BYZS5DS5DFSZTWMWeBfTlARFIJyfdkgDu08cjeOHMOMbk/sqcKva7S9tb6ITWk8c8RGe5GwZfwecg/ZgCK5hcWtxaSGK5hkhkU4KyKVP2IJGCD7EEjg1zOsurFNKU0pTSlNKU0pTSlNKVxdxeUuPQiWV9bVlLXCVEJOtp8WuhjVUVUR8mYUIWqvC8Ir+5ePSLryzogLOyoo8szBQPySQBXpVZztVWZj4Cgkn+Bk1ATfL6gGG4ZU3NdtHjt/uhlzIpw1k+vqTphkSerXMFImzzmhyrQEd/8741YNo5yNaNljHGT5Ddb1XqW2sYnFtHLfXGCI0t4zIofHBZgRuAOCQCMjIyPNT+mdO3N9IvfkhsoM5d55FVyoIyEQBjkjIBYYBxw3g62ubYDnm7ObXO7m+FjulkuXzLNlnKyDMYfyaiMJz3rHqKDC6UYYFXVwk4FDrnGOKOIQmCc9FcR3zh1Mtzf/NX2vz3dszMHN3eu0gRHJC21lYWgVAoxtCEv7bmbk13fQza6fHb2mjpayxopBt7RFDM4PquLq8ny7OcgZ2jn9g9IGWHnoM9mpVXWa3FnkUiOyWd13jmSLIPHjIyK35D4bp3i7RMaGKycYaOEBBgTsCrG6BJp9tq0l3d2t3dX1zF22nur+G6VGKqEjV5CJGY7FCoo5KpxgACtlW5m09IYJLe3s7d8iOG0aDgMd7kKAgVixJd1U8nJPIz3Go2ihVEoCUdcaxRxRKrgVbalHM7kVU+TJjPnvZz/utXl3K/pThOY9zqseIIWi2bh6rWxkLeeQHe37rZOMHIz7ZAzWUjWTZlZXyRnbLcoVPBAUoJMDzzkcHBx71LOpvbvHKgcONi8GIYpIUIPwI8z8wkEMVgkNYWc2Ko4UOLyppMlWoIY2qqN7nta6gj7xWPUru9XtJtJe3vcKVIIVC8TKpPkBAisRlyR6jjsRlntoYOTyvdt8EeB6A4Z9vjByceMYFSg29vcwq3je3KAxjheySpa2chpTHuVXdrZQhIpBNRVY8JX+IjeWmG9vDV3jQetX6djMOlx3kxJUtNdXhnd8DhkghTZGvsyyOzKPSVwTWoaz05b6syverGqgkJHDCYdu4HcWkkYuwAGQECjPPJqw3bHdcGSx4tXeyAMuicsjyRqNop3avDBHaPgcewdwq+NrWBN+lBI0ioJfonojriLqSzjW9RLXUN23YpPblByF8hRHMSCDGfOAeC2BxzqbpiTRrh3tmaaz4/WAJYzjLHAGHh5GJAeOQ3AzWcNdErUqaUppSmlKaUppSmlKj11M9Pm3nUftfd4RuFWSJ0YMKysKKZDlHiT6O/ZXnbAua8gXNT5sMqMcJCI5jkV7FTh66w7+zgvraSC4QMhViD+5GwcMp9iPsRnxnBNZdlez6fOlxbvtZSNwP6ZEyC0bj3VgMH6eRyBWhTW7kblQ8ly/GqgeXI7E8ryTFVbIziykuKyktpMAMx4/y4CMdLihFI7OxyBaRUQpO1CO+QtcvZ7LUbq3gvNQVIZ5Yhi8kyvbdozjbtCnj6+OPavqPS7S1uLK1uZrWzLT28M/Fsox3I1cKWdmJxn9RIz+DWZ8b3q3npVQsSxnRpDleAzf4umNc4Y1REa9joqjIvHvlWcu/qXlUTjWzr97A7H/UdS4yuTdynBxg4BbGADwM/ckVOS6NZTxxsLKybcuRi3iTA8E5UAHkjJPJ9678DfzdlpRTzEV8kat4VmQOG5VT+l7v9muGVGc/YiOciqvKrzxqn+7r9SMalfHa3tcy+kgeSDIQTj3wQccHGc446dsRlfkbUFuSRChJwRheMZGf5BOffNZMxPdfdvJ58d6tlpIIZqvO/Indv6nJ9hJEC1E5TnhBuRvC8N4XUbcdWXkkgze37vuBGbhxjLD1YJII4yBgfgc1kp0/ZxqQbW2AGAAIVycDJBcYYYJ9iM8cYqXuCSd17JovmymEH5O9UlZLYlaRzlRUZ4o8RQoNvpFazxr+njv5dxrE/3ZqhLL87fsp5Ae7Zwc8nClSo2nxgD/uqvodgvJtbUE+StuqkY9wc5BOcHk59wfaYmCG3AriNIyVQDL2sRflCnzhKx32XskiIjnInruc3lOOWp+2pPTustYt5g8c+WHGblI5wwJA2jdGQMZ5JA4yM+Khr7QdLnjIaFyPVxA7RlWGfDBx59vOB7ccZ2Z/GZi1cySWCN8kzEdIrRToMZpPKwbGiG1Xj5Zz5HMa4SKn9KIjudbXD1fr7z2TPJPGt1NGqzWyJFAGMoUthYwhwGLkZU4PgZDVrsmiaSsV3GUEjRKx2TMJZcBGJDtvBPK9vwwHJOc1Z3gWMtxylF3z5s+bZCjzrAsqXJkAbLKJCFbBFJKZ0SKjiK1gGkcna1rlXleE+vtMg7FnADK88kkUckssjMTJI6KzMAzPtBJ4AYj7/AE+d7yUS3ErKixoHZY41xhUU7VBIVdzYALNgZOfAwK7xrPrGppSmlKaUppSmlK9MkLZEcwHpywwSicn2RWlG4bkX/BUcqaoRkEHwQQceeeKVokRdsXYfupJFKrbM4LK5uXnIeRXxj2xklmhWMgkyRLaj5qdo3seXtUxFQaqju96fJuu9PyJrEphZpbdWWS8a7bEkjyO6uFKjbufAePf+pgRwOa+j9I6gjn0pd4jjkxst0tlYxxxxohiXbgEgZIcqCFUA5ycDkci2nTFQSLezk2kCve+QWMwkOBYvRXp3tEVlfaSnua1HcqX1wjHKrU4VutIu+k9ViJlee0a2Kk+p9zMQCcHth9pOPJHA4IzxW22vVFjPGkUcExmUKHwDGMZ9TqHVFIBI4BB3HjjmutFxtRSqUbai/khuF4qCsqDOJZsaxhC/y4hZY4rWcKrByyjIReFGnevZqOk6auhPFboIGmnAMZaZIS24Z2+rheThSdoPBIAIzmR67b9qWZ2kRIsmQKrShdpwWyACxXGSFBwOATtzU0tndjMosX1cyFiuTjHJ8JUJKhOr0CrnDRqyQ2HxpIeO9XvQYzKNon9ytc5jX0boPXJHAFnKGLKABNGQxB4KtkBl5wWzz5Bx5xpOsdGjVib6IqBnBVyTwCBxuIb7EZyasEwrY7J6hndLrJwvHw8nb4zovLk7u1Q+ZET0iIiI1FRyKrlXlrPa/D3V0LGSCYMmSyiSBicEAcI7qfbBDcjPg1gzdbaTIFEdxE+fSMrIufGOGCkHgnnwakfBwiVi9WK4uqy3SAz4rTFHBObt8pWBG/48drjPa55Wq9ET0iq569rVXU7YfDzVNqySWsjKdpIdoxhS4O8ImWIUZyFJwAce4MDddZadJI0cNwm/naqq4ViFJ2mQgIuWGBnA3ADjOa7nS5bUGl5FRVVHe/n2NCsiNjW9R+VUk50eKRYhI0p0uQpI6HE55jyI0dSqN0YTHObqf0G20xb+Czjhup7mO6uv6Ets0FpOtsgXasm5+3tnVjI0iqXChE3OMVF6q98LJ7tpraC0mhgJminWa7haZ8uzJsXduhYBFV2Csd7HaDizCGxw4cUb+3vHGAx3Y1GM7mia13a1PTW8ovDU9NThE+2vrqNQiKoAAVQoA9toAx/GMfgAVwEncSeeSTz55Pk/mv6de6pTSlNKU0pTSlNKV4d9v+bf/JNKVqr7p7YTZe4+Wtr68s2XU5DljUhAZ/PYOLk9gIwxpy1HGE1gVeJi+VyNana5OUXkvVOj3Lpqc1nbSXMjPA/aiXLtHAGDMq/vZW2nagJYeAxIrfNA1SKFrG3uJ0t4lEyd2VgIw0u0ryf08ZG8+kE+QAa5W02CybJMYOK0rI4RSEeVrPLyV7XBVBEJ2NQgjdruw4XI1EVvtHOVeNfsuktTmjaO8tgsc53LhiTgAlXdsKyvtOJI8ADHJJ5qdn6psLeZJLSZ2kiAUkp6N24FwnlXGVBSQ5z5HFQd3W3LjdN+6c3YEzCxM/3UJtBnPT5dV8glcK8ucsz6kwfPMAyG4lwS0OLhp20t3k0KyspL1ssck2YlGk+HEjSpcdD2lzfR3aqIp7O9tCdpIFzFFa9llcfsDHOTnjYrLg8iLPVtytrLAxEsd1DdLlsbonlnMiFW5zgFcZAX1MCPatjGkx6LBCRacde+cMggthSLEUMAZUxVfXRpRCNKaKkxSDZEaULjyuW+AJHua3UqvT+6ZB3JFGGCFiwjTavAI5wW4Azkk+Meagn1ZipyoAG7DqoJO4gE49ypPBXGPJPNRTd1PmH1CZX0USHjPvJuLvZW1dBEIc8qrxPp9k7Q41mV9nQLKBXPiRjOsKXLaKlxS3kRrsmTWpZchyVsaPIkZL6VbQZgiQFu+wd5CVZk9EoxyRg8hAMkHJbBGDjC6lmKzM5CiFcAKADKWdTySGDcqXxkHAAAzkXKycer7YEeNMG1sdpQkQHDX+xK14Ef3J+pRORjl9IjnMTuaqKrVmUsgymQKEZlIUbRwpyC+3BG5QSRjyQM8cHCNwV2rjcF+pJzgEEEhhweeDg88nxWOcf2rbjkKwe8zLKfZU89hTyxDGqLYZY6RGapBoiuWHVSxw2FVfKZRNc5Ue9zl1fpLpAaRp9n81KLu5dNRd3dFVk+e1Se5gQ4ByILWRIBIwDPtyww3E7r/UT6lc3AhU29qXtAkaOzIRb2UUEjKCRtEs6NLsAwNxwfYShROP8Ar9v8/Wupjj7ea1CvOq0ppSmlKaUppSmlKf56Uqha8iLUdQm+VRJYih/0nZPZVz1X20FpYGmPGxPu1rHGROEXhyqjl9rxqFAcSzKWOFmZgPYK2cDP0BBIA5Hj/jWW3McJ99mCfqUOM8c8+48D781niHAEetUTuEa8fCLx7TlP2VUX1z79/dU4VP21ZlMjiSNWCsUbkckBgVyScAg85GM8/wA0jwGRmwRuxgjPOM/Twfz7ePrAnrG6GNuuq3E41LZVtkDcrD6/JrjazMccyQeM5Jjl4sWMsOIe3PXWkORTXRq+GKVFuau1gw5ZfzEYo0gLzPrb2/Zg3BnZ1GQSVy0jEFwxP6h7rkjB43AZpJKxkbgLGTt9QJyBkKQPTt48EZBXGeRiqrsB6sOsMOG9Y3TluvtfW02/DcugbhydzNwMpqsMkRLjHsY2sm12MV+JUk64BkO4cGkqKa320jUeW4/jcqRbxvhTIgSlGlx1UozhduZDISeCZFdHKqpxlwcAKD+kgDIANUU7HTnKhCuDyAu0jJI/YSckkE/ztq//AKCujKwxC2ndYO9NDkNn1f71jn5DnFhmltWNHgUTLUinm4niuF44KPQYaeNAFGqpwSTcrtoceOWoZlU2KSUsrx8vG7CSQHfuL4B4zuB44wAxyffGSuccV6EzYCrgxgAL5B9KgAkkc/ke/P0q3qmozCcaTLOpHPI/wtTu7WC9KxeFRP1r6V6p+lF/pVU5TV1ztilPAYKxUgt4APuQOcckeMnA9qtkjeQAcYDEMMHPGQMZ4PkHzg888V2CfGTwRUEPkvyK+Mr2qnLIyz4hT/uidvAeV9L6+ycKqL7t1A7K8DGw4ABBA2nHv9MjnOePfmyzEk55BJx7Y84P+ffz71z+pavNNKU0pTSlNKU0pTSleHfZf8l/7aoc4OPOOPzSqXN26wAOovdN5RK1zMnFLYqfu2fTVUlVVG+1RxCPf/f3zrXrq5MU8y4GBIeSDnBwcDHHk+wP4zk1nRKrxpyRyQR7EjJ+3gH2Pk58HArO60fqu4d0Vbv41s5f7cWWQz8qw2qymiuD3CY9TzmyrafHumtsSwJ4QwMZqaexPaSFAeWS3PS1UGGdZ5ChjtQ1pbCxnuY7d76eIwbLSJts0yyziBzGME5QlgpZQjOpDFVDMJvRenzrN9Dby3Men2jmdZL+VGkt4ZIoGlRGIZQWkYIHBb+mj78HKq2WtiN/bLebA4m98/e6Dt9WZdY3UzFsOxHCsevs1nYTCnmFi47RtsbKYlDkeRR4wpL4aBICIe3ZGfJXwxZDLujaxFrNhHeqhtA89whtpGia4j7EskHbnRWO2UtC/pXdkFdrsMMcfXdKfSL99MZlu2gigle6gEhtna4hSZnhYqpeGNZEUSEKGIJKjOKr+6d9mOtPf/drffd7qlwJdo9uN5bDINy8Pw3DJe21pnmbwLaZim3eDYolrBt7UspcXp42NsxLJvnVldFzW4k18q1YXIISRJVyzRrGEKsSHG1VLEyEADLYGQCQpyPSSvk8ROUTGxgxRCDnKqAqnII98rliQTk8+1bIPTXvdabp4TLsJe59XS7g1FxZ4DfY7fY8GuxdmW7e3z6CxtqeUQaFHWZpErksD1wbSetfNuJwoUt7q6ArovTtVtdXt5brTryKcRXV1YTjayiC/wBPmaC8tXDqkqMki+pWUgbw6FkZGrLvNMvNLkigvbWWBp7eC8ty2D3rO8j7trPGVZoyjoTg7skqVYBlK1nU/VlhcLdfavZStSuzLKtwHZRXX1hhN9DtqTBL3ElFEsoFsMqDtCj/ADRTxW/6sGRFBGJKnDE1w0LmPMjMtv5aZHXepyiPjaRgDJ9WR5GBjOCQaw+3gGUkqEZeDw7AjIO3HHGOQMc/nEtCsd2wmkVriOkAcvHKJ3MY8rlbzz6ajHdv7qicr7VdZ8S4eLB/48e5wBk/yQTjx7D6VjHkkjwSTz9zXJakqpTSlNKU0pTSlNKU0pT76Uqknqs3GwPbvqc3KiZbl+OY2ZMPos/WHb3EGvmkxmtxuIG4vBRZRwmkQYUqDIYY0YZVG5itfwqt1reohopbq6cEW8CLK5HqYKsZkkbaNzHG0gBQCSABuyBWfaqZOzAi7pJpVijGQu6R3VUXccAbmKgkkAA5Ygc1omfUF+pfinXvldhRY7t/Q4ltXtpmMum2+3WsCSpO7NxR2M2bbSFsYkhX1dLjdvaeKwHSRnSCfDjRIs85HucyPzTXILmzvNKvLaG4N02n6iUsZWftTWVxeNcbbx1kJ+biaeRoliCtAkhhDvtIPeOibGxubPWLK9vx8st9pqzzw7DHa6nFbiLu28TR7ZYWjhWOSWZtk7ertIuMdi6fb7A7jD8YNm5dxbmwr7dIWMv2sm0+JNurDFXv7b29s8hsZ4MVso6W7Bwy0OLSWTEAwqkC6vQr+VXV5Dpd/f3E0upWcDI91Fb208cjqb5h80rTy75SsTWcQhkCyXAMkwDxBg57EvTFzrEdolm+hXny0UFvdXuoWEqRkWQf5OSOxtRDFIZYppO/E0ywgrEXWQbUq2Pbv6q+zuyGD4PsfN6ceoLcLdjbnC5tbgVtkG7+yJqSPi9XelyemqwZouLDz2bXVdrErHDhOw49zKn1ld4YpyQa6WHrujfEHQ5em4dWup9Vllt2W1lM1nJLtuWkLW6XF2kawCMAoXuX2hUUu+G4rh/UHwi17/eEml2T6HDbX227tltZltC9osYFzJa6XNM8wk3LLttY3fe52xEg4q6z6QHTq/J+m2j6nB3+Mz8g6jc0HvfaYRGJOfilBYDfcAdt4a3qpvz4Yqa/srYmR0E2rkjW9Cgb2vP2SxGluirHUoLPVbu+bTyNR1y71OwFk8kkJspoYuw00xZg0xyTKmNsZjUHySdS+JF/ZTaxY6bZw30UfT+iWWhSvqCqt1JLaO8hkMYQKqHuARkY3Ix2+kCoPYt9WDpD6OOp7f4+G4zf9Uu503N6mr3E3UwyjwDbjZjCYD7GbFzDGNqZ4Svvc4sa0gA1p84t6Gsj5nMqiAJZQ6oIpErF17rO26cit5FsJtQa8uTHAQVtkntbZg97PZHa5fBZFiklRFuCCT6AHOR058PL/qQSJJfQackFqZZEdXuJoZpAVs47wekIHKsZI0LyW6bQyFyVXYP6MfqR9N/XTPt6LaSxyCrzjDqiJk2R4NmNZGr7uJRTTSKoVtAl1k20preAye8USUWHPSRELJjNkxhtkDc6d6S6y0nq15lsEvba5tI1kntL+3MMqIzGNXSWNpIZl3YDbHDJuXcMnI17qzoTW+jvl5NSNpPbXcjxQXdlcd2JpEQSGN0dIpo32ZYbo9pAOGyMVYVrfq0ymlKaUppSmlKaUppSmlK+eH+KW2nrM0+oXjN5n24V/jmKx+nvBIeOJGp48ispZprbKyZAwE0p4iGl2oocOYeH5Fco4Y0cVo1QWuadXdWaloepxWGl6TBqU09vDcyrNLIHKF5YUjSJInAUsoV2G45kAIANdV6H6O0vqDS7q/1HVZtPFrNPCnaRAFcRwyLM8rHO7DEKmApVGy1apWfbW0+2iU76fOKXIikmSo9rXwLSxHeSozXumVt1aUJa74mPxZdeYcETIt7ZkkSY6yXRoDivG6Z0DVJOrrB559Hm0tgjxwvcDuJ3kwJWt5GjjWSFGYKMgFpI3H6QTWHrWmx9E3sUVrra6pvkjnuYLcrFmBgzIsyrLIyTEKCW9IVJY2B3HFWs9PXT3ubu5huz27+Q2eKbWdPVzndXtBGq8fn3ESwimlSCFtb6bNlSyW866tbLt/PLeS9COCONHgjj1ccKJwHra4tNDm1HT4LK6vdThLCTX7+KzFrLdY7xiks4GfFvZ2cjSoERVwm1v6zV9B9Darc6nAl2L2JYpNPk1FNBs2vGfsRboYoor+RY2FxLMih1OSQzbZG81ZJ1ZfR52K2V2Zk9VW33UVYW2YbdslS7PEclt6ZIeVWFdIPMp/yG8OdtvWya1qER9UjZyW7HDR5Yj3ueTDs+sr+16cs9K+d0LWotZ1saHew6bbyR3NlHqL/KyXVtYxzSJexqscb3Lzxo1qjtcZ2RrHUZaw22r9eR6ze6TrGnSaVpn+qWjmQ3EU0+lh7q1jvrm4Qy20fdYriGVRKAIW2l2Y1G9PvWhuft3s9vBXUHWVvzsLNt5lhJZs9tvZ3sfE9zC5NWMqLKTLhwL6tg1k6WB5h5FbDB5BVkZHESVOsYSp3aHSNV0eew0rTdKl1LR7q2bvXEl4kFrayqCJUvXOZSssZVbdIoW3+sM4ChRybVuodM6mmvdU1ie207Vbe6MneFiLm8kiL9yH5OFV7bKkm5pVeZWXcrLGNxasLyquZhO32PZoPPJQJWX10qfd1sRYboUStjmV9WKwCNr0jyChekxQPNIKAZxKTxleo02K86f0zW9kV/pn/jcrbzHKRq7AJP8p+ljGhURbnjVG2Htgqoatasep9R0LfPp+prL/qG/vrIhLlY3zELrcGUMwZnCxuWXJ3EE4O6b+Fxh1VrD3Ty+viQHmJt5UxJ9s0DnW1gSyzaeaEtnYERXSBDhVjh10cDhxo4mnf4fKZ5HXtG6c07QZbttOtjbpdQ2KySbtyXEkazPIyZJKlWkAlGAM7dnAGIzqHqPUtft7E6ldrO9vc6g0UCpsNpG/y0aq2PSRIIy0fLMFDbiMgHcB1PVq9NKU0pTSlNKU0pTSlNKVoofi8cPssZz3p13XqXuG/KcHsMPa58cMiOORh9xezrBSBkDNHkfNr8qrQvYQXcBkRpBO7icshLrpjTtW1SPULyNpGis2tAqyyREjvpPGxMbKcwurMhBUkuwOQK2bTepdR0rR7rTrGYwd+9juXkEcUnp7LQugEisMSLgOOQQuBt3E1pK40lctxj0y7YOVTssYJbcEjzODIhAMx8uMdI7kOopLB/HKwTkK4b3Ma4aqj2z1/HMNOuorFW+YFtKloItodZ2jKRMjNhQysd+WIXILEEcGHs5I2vrZ7t1Fu11G1y0gLIYt4aUOqAsylfSVUZIO1ce0lMi6wN7ciq8NxV97AiYtt9CFX4rQ1tcyJBgiFDFXrK4aRTFmFjiVzJBnPPHV6tE/saia5+vwq6YmkvL2+XULy/1He9xNdXgkMbSSCZo41SNUVC4QTNgtOEDOSa36D4o9Rab2bbTV020s7XtokMFoybxEpjBZ2kMijBLIibY4mb0JwK5zP+rLNczxg+HW1tkWQ0LoTo9bW3VzOJCpnuGxFcGEpHMkzCGEE0qYYzmqjGACJrBIV0Jonwf0nTLqHUAkNtqMFyspuLaOMd5Q4LjHb/AKaSKAuxArYAZmLMVXYdX+MmqXcV5Z2sMRsr6ye2lSZCswLx7U3SowLNC/rLHcjkkLGMBmiXWRjKdqO7iK70quV3typwiv4VPbVVHel/si+uddnwAAFOwAjG0Z2jcDwCCPqDx7k8HmuKhzk7stuGGySMn/kSMkkH1Y5Gc8YJBmdk+Iti7XYFVWaSXiyKilWPxo6IEpYsqc0DlE5zVRXHQJGMN2OYr0VV5TuTVS8TvIiuGMeEfGTtOdyox5wR5AzkDg5xXld4jVWBAJLDPAbnk8AZ5PJHg5Fbzv4WDCD1GwG9+VMrZdbSzbLbXGKIM5/klcU9Jcz7TyPanax3yLEHkA5UIAqOQrWOJ2NsThVSFFCgAOQADwCRjk8kk7jgEgY/FVZi7Mx8sck/4H9gAP4+tbWWsavNNKU0pTSlNKU0pTSlNKVSB9ez6e1l17dFloPA6+Raby7FSrXcrbqoip5D5TCdVOh5phkYP3NY3FOAFlRiGjjSL2kgV4k4sH6vQNtkXxg8HP39/Iqoz4zgEjPOPHj3H/dfKduoMzEb2wobqNIhNBKOAzDiIE8MwiuGRrgkY143Mc1wyiKxpBva5rmte1zW5pAU5wSOBgH6jkfU/bx9MVb3YODjk8D6DwWzgZB+nt/Ne9oe1zTgc0olVHNVFRzXN4RUdz/xcLx/gi/bnQqPI9IwDnk8n+fP48V6BB8V7HK0pFeo2teq+0RPXrj+lP8ADj9vaL6/fQIT5yPzyT+ec/3qtdhqROUjV7EVUcioqoq888Lxyn7+05ThV+399ewMe2M+cEnH88H688U+n+ftU6NisEzLebN8Mx1sSyyKQSTUY/T1gRHllcNZQ41fTwIokeV6nMVAgjR2d5iFVg2+R/GkcMaCQoFjLs0jsFGWdsbnOcAnHuxxgAHiqO7syZYkKuzB5IQZKjJ8KCTgDHJr6kX05ulZvSH0tYTtnPjgDmVoSZnG4KgaJGsy/JkCeXXNcJqNVlHCFCp+GPIHzxJBAvcMjXLGyMrN6RhFAVAfO0e5+5OSfzVf/v7DH/QqderdKaUppSmlKaUppSmlKaUoqIvpf/v/AEqfsv3RdKVqxfVo/DSbfdc+5k3fnpr3DxHp73PygkmVuTi+SYbZXW3Gc3Z3eR2XQSYxYwLfCsmmk7lyL4tbfUmQHelq6qr7h06bY5Ec5UbXXeMYXJwV5J84ORznnBHsQCaowJHGM/f6fTwftVAN7+ET+ptipSNxPdrpBzOI3l4w/wAd7nY80iKvoajuNqzKAnCJ3Oa97EXlGucntffzC4IAbBxwcHHOeDn/APfegGABxjAzxjkcZ+/HvjNdZifhY/qseRo52N9Ma8Lw6RD6gpxY6oi/ftPteCSnPpWp4nKnHtfa6uC5jxzuB/Gfb7H6+3+cc1WpC7dfhTuv6TLirluX9LuKg72KcxtxM7yZwGon61ZHpttIrpD2oiI1iGEj3KiK9jeXJ5+aUfsY/wA/+zz/AHFK2dPpgfRM2l6CZEfcfO7qq3i31A1zafIxUhavEcEYQKiOXEaeeaRKNdma8o3ZNZq2ZHjPUNbEr3vkGNZkndwVHpUjnHk8+MnyD78DxSryNWKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pX4Ir0Y5WI1X9q9qOVUb3cfp7lRFVGovHcqIqo3lURV4RXPt5/OP7n2H1qoxkbiQufUQNxx74XIy2PAyATjJA5qDVf1Kb5Ram0Fe9OuZSb0bLWTBn19Bf12PAGsloaWLLiePIbyc9gJVZMtJMNoDPFMK0FbELW3I6rU49c1ZY5BPol0ZQJGSRIZo4VBYLCrJieZyA0bSlMEhjtjQxyiL6QuvhH8N576xfS/ix09BpjtYw3Ntearpd5q0jiAy6lNBPv0nTLZZZIby3sILgyokkCGa8nS80977N+1W/FbupGx+RXYdnkAF9AuZrLibitvGxmI6ltJdS6JJvp0aCD5tgaDKPXgjhkheAaISW0pBMLLafqyagsLJbXaLMkzCVreQQL2ZXiKtKyqNzlGZAAwK49WSAecdbfDW86Jm1SK81/pm7l0y60+2awttb0+bWZxqNlb36zw6ZbT3Mht7WO6giupJXhkSRiy27RpI8f/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHQABAAMBAQADAQAAAAAAAAAAAAUGBwQIAQIDCf/EADsQAAEDAwIDBgMFBQkAAAAAAAEAAgMEBREGEiExQQcTFFFhkSIygQhCUnGhFRYjwdEYM2KSscLS4fD/xAAaAQEAAwEBAQAAAAAAAAAAAAAAAQMEBQIG/8QAJREAAgICAgICAQUAAAAAAAAAAAECEQMEEiExUROBBRQiMkGh/9oADAMBAAIRAxEAPwD1SiIgCIiAIiIAiIgCIiAIiIAiIgCIiAIiIAiISAMk4CAIuaSvpY/mnj+hyuY3ug3bWzhzvJoyotE8X6JJFxvuEbWB+yUtPLDVyuv1I1wa5lQCeWYijaXklRb8EsihjqS3t/vHyMHm6MgL9Yb/AGyb5KuMqOcfY4S9Eoi5oq6ll+SoiJ8twXSvVnmqCIiAIiIAiIgCjb7SS1dM0RPDQw7nA9RhSS+JBuY4eYwoatUSnTsz+obQxiLxjXTCZ4jaXSkDJ5DA4BSVNLFTsDIKYRMHRjQs97QnVw0rUyWxr31ML45msbzO14JA9cLQLaO9hY+TducASD0ys+N/u6RqyfxTbO0VQA+//lXyariOLh6YXTDDHgZb+q6WRR/hWjsz2iPEzng4c4jyIUbV22lqZTJJRNMmMbms2n3Cs7Y2D7oX32tA4NHsjhy8hTcfBUI7I0cYWTx46bzj2Ks9jpJaSlLZn53HLW5ztC+9TIIoXvdyaMnC7WjDQPIKFBRfRMskpKmfKIi9FYREQBERAEREBlVVJG6Oo+MBrXvYTnkQ4j+SnaetpqaFr55442kcC52FhWv7zNZNZ3ujy/w/jpJTGTwO47gR7qb0jq6kqYg2vp2O4jBc7iFyJ7csTfX2df8AR84qVm3U1zo3MfJ4mIMjf3biXAAHh/ULrNwpWP2OnZu8gcrBNZ3SSkr21Vs3utdTsFUcF3dFjgQ7PTIGM/8ASu9tqo56F90krGingqBAJoXtxxIaXeoy7+atW7knXxxTszPWhG+bovs1/tsLQ59UzBf3ef8AFnGPdctVqSmfEP2aXVEpdgbW/D7lZvo6mZdtT1dU5pntVPLK+KeXP8aRzvPk4D4sY5ZWnSSUtNA3ums5cMAYCmWbO07aj/rIUMSapNkZLqWarhjZDbZx3sjIi5xwG5cAT9AruqPT3PxNdRsPd91JUMbGc/E8g5PDy4K8K3TySyQblLl9UV7MVFpJUERFsMwREQBERAEREB5k7b2Uv733Zkzd0nwHAHEZaMEKgWjTlZUOAklkgYTlnHBct17U4aZ+sYhNBGXmJpD3DieHL9FR9ZNk8TR3S0seLjSMLGsbgse08/h64yfzXz+WSWSUOVdnfxZGsUWlfRzUNnYaR0H7axkFu1hc4k8iDjkqHPE631twt9PVvq6Nk5BjZIXbS0gF+B8OefE+StlnvNwhmMNPkSTgF57vY4E53ZGDg56eq5IGUtkcWUtC6Bz42id+9xcTnJAJPJVYZfFaflnvIpZJLq0Tln1w9tOyip4nxiMbBJK/LQOnFSIvVxjb3NM5009S7O0hx59fyXFoueBjTJLFEyEA7Gyt3MaNuT04nPADPJSmmHV8lZNqO+B8UkLPDU7DF3Rew/fLenPh5qqWCLubdJfZ6eZRfFRLVoiimfrOi8Y4mSkaSW9NxjJ4e62NZdoLvK3WktaS0wCldsA8yQM+wWors/jIpYOvZyN+TeXv0ERF0TEEREAREQBERAYR2+1jbdqKkne7aPDNd7PcD/qFATPgjoYJXykue7cPLGPNWD7TNEMWqtkj3wvjlpnHHJ3Bzf8AcvOV41DcnlscTnNjYAG4OeI81xdrSeXI+J2NfZhDHFS/ovWobrNTSMdE5rm7iSQOKp1ZWVtTdmySRt7pz8by3OfquG16iq4gWT07JI8cS/Ocrq00JK+/0kEtW2Jkso3mQ/Dz44HnzU4dV4U20ukXZNzHNxUW/Jo2l7ky30xfES4MHPOAD6Kat+qzeJ6ujrWxtjhbvc/OS4jkPyWXav11HcbpFT2O3xUlupWOgjeG4ln4/O8/TgFXrVc7nSVss8LgZH8C1/EFUP8AHSknJ+We5b+FtdHrzsbldNVVWYizZTtzkYxudwH6Faosw7ATU1Gj211cd1RMQ0v88ZWnrraWP4sKicfbn8mVyQREWozBERAEREAREQFb7Q9MR6t0rV2tzhHM4d5TyEfJK35T+XQ+hK8R3+2VFuuNTSVkD6erp3mOaF3Njv6dQeoX9AFRe0nszs2uomy1W+iukbdsVdTgbwPwuB4Pb6Hl0IVcoW7R7jKlTPEBGDxX1PNeg6/7OF03Hwd/oZR0MtO+M/XBco3+zfqQvAN2s4b1OZP+KhJom0YfGxpfuwMq3aF0vV6lu8FHQs3yvcBjyHUn0C1i2fZuqxUA3C/UzIh0ggc4/qQts0Loi06MoDBbIy6Z4/i1EmC9/p6D0COLkSppEnpeywafsNHbKXjHAwNLvxO6n6lSqIrEqVIrbvthERSQEREAREQBERAEREAREQBERAEREAXPXPqWQbqONkku4fC84BHVEQlOnZ+FDVVksz2VVCYGg8HiQOGMf+90RFCPU2m+lR//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAEFAQEAAAAAAAAAAAAAAAcCBAUGCAMB/8QANxAAAQMDAwEECAUDBQAAAAAAAQACAwQFEQYSITEHQVFhCBMUIjKBkaEjQnFy0bGy8BVDUmKS/8QAGAEBAAMBAAAAAAAAAAAAAAAAAAECAwT/xAAfEQEBAAIDAAIDAAAAAAAAAAAAAQIRAxIhIkETMVH/2gAMAwEAAhEDEQA/AOqUREBERAREQEREBERAREQEREBERAREQEREBFS57W/E5o/U4VBqYR/us+Ryg9UXg6sgb1f9ASqDcKYdXu/8O/hTqi6RWX+q0QODNg+bT/CqFxpD0nZ801RdovFtXTv+GeMnw3BewORkKAREQEREBERAVldo6iWl20ji14cCfexkeCvUSeDUKe5R9HRxkjvB/lXzbowNwIyPmFotbI6KrnZkjbI4fdVUk8ssmNx+qpeay6006RvQr95GG4+SrNTIegdz5LE0EPuje5xKzNPCzHIJ/UrSZW/SlihhkcSXA5/oq3RPcfPzIV4yNg/KF7NAHQBW2hjPYyRx0xjnlX9tpTSwuaTnc7djwVcz9kbnHo0Er3by0HyUWj6iIqgiIgIiICIiCKNQM2Xmub4SuP3yre3OxNxjK9e1KZ9tNfVRZDjgAgZwSAAcd/VaJpPUM1wrpGyyNLYIxvc0YyR1z3DPVc+d1k6uPjuWPZMFDWQtE4e8NFOAZC7uGM5+iz1O4FoIOQoQ1I/UMVNPdLbAZISJKWYQNLy+ncAWyAeIy7kZxnwUhWLU9NV2SqrKST2inoIGTPcHjIywu2n/ALNHBz38LfH2MMset03I1UTI5n7gfUnDwO44Bx9x9VeBRXSXOrumqaqqohLLpykeKyeXaS2aVkWA1h/MOh2jIy35LcdDXipvmnKa51MYZ7ZvmjjDSDHGXENa7n4sDnzV1dXW2dqzill/aVeDhYi7mUNgcyUNj3gPYR8eSABnu8fNZdRUCIigEREBERAREQQh211lUzUL7YYHT0dbRNe2NmA4ua/D+eo93H07lElVe6TS9ggqaKi9rgqJJIt7ZSwuHIG7gnPH9VLXbbcGWrW9vq5Gwhws9Q6EyHG57HtJYP3NyPmueaS3HUk1dWUck7JoZTNFSkggPechoP6g848FlnPd13cWXwkiauwzULodJRMvlSxmHFkHvZLY+cNLRzkYPJHQhW1XQWGi1pc6W2zPnEsTWuoZXyOD3ua9x3NGDge6QXZwTjvWG0bXVsFJaWyupmXV1RNK+CWMxSbtvQA9W4LucYwF4Vt9htGoYXWG001xv10fUOdOKp5Ia5xDSHB2ASAc9OBxhXwv9Y8uG78U+2Waittgt1JbnTeoAZ6yR2XFo/Pud/yBGCFl6CSkoKN7Iqtr2yPc6LLhySS7DfHkqIdL3TVNKGy32GjtlLLLFKA1zn7CX7CHl24Akd/eQe9adr3tDroNYva2J0oonGahc9gjDXE8O25O5mAfAlT97JhdTF0LU11Jc5YImzEzUdXEJIwOjnEtGfLkn5La1zz2M64u+ptZTUtxEUlNM/2jjj1G3O1jfEcnrkroZSpyyS6n6EREZCIiAiIgIiIOefS+t/rbXpuuaPeiqJYCf3BpH9qhPRl7kpblHuZTsie2OOZ+7YQ0AtDuuM5xk/oukfSkt76vs4iqGA4pK6KR5AzhpDmk/UhcjXOHaza0M9W3IJ2rPP3xvxZdfW79oWpp21Nuo4HOZWU7BvnDeu4HIa4k5GDgrWdNXCaz3qkrKSOBzonDc2aIPY5p4cCCPDv6+C12DfJIwEudt7iei27SN3FgvdPcTGJPVNd+CWBzZcggBwJ6Zwfkpk6tMsrmkLth1fVVtLLQUFlq6a3ySRsNTUROYZXtcSGhvTBB4B55zhaVq+n1E2qp6/U9tkopZmCGNzqf1QftHQeJAI+wWHvuobjf6O3UFwr2mloC807OSWlx5yc5OOAPADC8K+5XK6VdHBW1c1UKKMQQbznawc4+vf1V9/a0yutJz7BIKObWNmmoGSskjpJRV7nAj1mMDHHAI5/VdOLnn0a6BzrnU1ZjG1kJGenJwP5XQyrjdxz813kIiKzIREQEREBERBjdSWem1BYq61Vzc01XE6J/iM9CPMHB+S4W1XYq3TGoauxXhpZUwOwx/RszPyuHkR/Hcu+1pXad2cWbtBtbYLmHQVkOfZ62ED1kWe7n4mnvB+xVbNrY5acQGPa4kjr1V7I2OJgGGvy0dTgtPVTFP6OGpYJC2j1BaquEdPaIpInfbcqWej1qc4311oB7/wAWQj+xV1WkyiG2UscrTtgDsDLnY/zhZqw2h9bVRxU8RdI9wAawZJPcFMlr9Hq4e0B10vNGI88inY5x++ApV0H2cWrSTjNETV1nQTSNA2jyHj5p7fE/kkXnZnpcaV01FTPA9rl/Em8jj4fl/XK2xEV5NeMbd3YiIpQIiICIiAiIgIiICIiAiIgIiICt659SyDdRxskl3D3XnAI70REy6u3hQ1VZLM9lVQmBoPDxIHDGP8+qIiiLZ2W+TT//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHQABAAICAwEBAAAAAAAAAAAAAAUHBAYCAwgBCf/EADcQAAEDAwMBBwEGBAcAAAAAAAEAAgMEBREGEiExBxMiQVFhcZEIFCMygaEVUlOCFkJDksLR8P/EABkBAQADAQEAAAAAAAAAAAAAAAABAgMEBf/EACIRAQEAAgMAAgEFAAAAAAAAAAABAhEDEiExURMEFDJBYf/aAAwDAQACEQMRAD8A9UoiICIiAiIgIiICIiAiIgIiICIiAiIgIi4Syxwt3Sva0e5Qc0WC+60jf9Qu+BlcBeKYnAEn+1R2gkUUe+7U7ege74C6/wCNQf05foo7QSiKMF7pvMSD9Fzbd6RxxucPkJ2n2JBFjMr6V5AEzQffhZDXBwy0gj1CtsfUREBERAREQFH3yAS26Z+SHxMc9uPUDOP2UguivG6iqG4zmNw/YqKKcbrbYfx4Bj2WfBq+lkAyx7fg9P2VazkSNjkdx4Q7A8uFsdiZGQx20ZxnJC8r8ue/lt1x03mG/UkoHLgPkLLjrqZ4G2Q/HCjaBrWgbQAPTCmYDwFtjllfmqWRyjfA7GXyfo1dmInHwiQ/2n/pd7MluOfqu0dfhaS1VjCNv9F5x6nC2S30/wB3h6/mAOPRQuPJbI0YAHotuIERFsgREQEREBfHAEEHoeF9QoPLkjHNy0DhhLTx5gkLY7Gx+0EB2Oij6tzbd/FnuZs2VUzGPPO7k4465zxhb3phu+kg77DpO7bu4wM454XBj+m7ZfLbLcjDs1ziqIaF3+epJYGt52va0lwPpjBW00/QHyC0C6Wyr07rUXmpiMunJZXSkxjd91lfGGF5aOecdRkeI9Oqn/8AFdrgtNprKiaCRldG94iik3v3bC4N2jk/ynjqQt/21l8ZdmxQV8Uv3Luju+9N3sB4Ibtzkj6D9VItWpdlthuTKZ1yvEL43yQxwUkEpG6GAEuDeOnUcE545W9Pip2xd8H5Z145B8la8NiNsWMZkYPVwH7rYlEUkTRUtdk4d0BHTn1Uur4Y9Z6UREVwREQEREBEQ9EHlztJL59WT2ujkjDhUzztEpxulbKNoH6ZXXF2mVdjNDRGgdJUQtca2JxDpAwc+DB/MBz8BRPbDTup+1erE/4MM9V3kc2PyPDfDz6bnAlYVXpmvuGpoNRWgympdVvE8LNodhgAe5u7gtIOMe+PZYS6ydupcNX+lzVWprPcrRV2+ugknoIKNtRPNVsc1uBg7i4Y5+OdxGOqqiy3S0UdoopKa2/eqVk/eyTSwlkbJthwJHh27aCW7gfD7HzmaHSNRdLjXWWpdHIZIzPEyJhi/C3hrRjhuOo5Gc4UJY7XcdVVdwsGn6ukorfTu/Eilp2x+I5YTjcSSQ3nnz4HRa453XquXFjLue6XtoPXNuvlBFUmKpoWHbCIp2na15OGhpxhwOeCPRbdNWwmpfTwSQvliAMjBIMsBOBkKotP01y0LpSspe/uVW2Nr+5/CyYzztDA7oMNLjz1PRR51G6wTw3C/WypZc618Qlk2NaxsXBa7IJBJ8PHQZU5ZyK4cF5L4u+mmZJXxw5O9re8x5EdMgqXWidnF2ZcKSlZAYyGtlD2NcCYdr+GHk84IW9pLubY8mHTLqIiKVBERAREQEREHkH7R8UrO0O4EPf3Y7p7B/KXRtz+7VrWne0maCrm+9wuLJmhrnxYDo3ZJcRkEEO4z8BWH9py1SHV0UwO2OqpY3g46ljiCPoR9V56aBSvcXZJ3YLcY/VY3WXjo48rh7Fw6M7UIoNcSVt8h20lQTG2UYJp4iMYwBnqASefhWF2fV1xl15VvuU1FLb6cmWkdStia+UFpLcFnLmlmS7dxuA+F5kpz3spezO0cHIws6Koq6Iie3SywVDQQ18Ti1wz15HqEk15Gvfv/J6y09WX26z6gNdcYopSIahsEAD9kQ3F0foCWjB8+c+apjWWpYtVarbT26qjpbQ1waJqndiV2M5cDzgEYA+OFH9jN0rpdT7TXSw0z2GnnY6QiSSJ4LXFoIIy04d9F9v1kt1l1VRWunlfVU8e1sr3jY5xc8g5x5gdCPRN6n+t7ZbueRen2daN0WmzNPTvilc+RzC4YD2O2YI9vBhW+q/7JqKKiiusFvDhaYKgw0znOJL8Elx9hy0AeysBXw+HBz3ed0IiK7IREQEREBERBoHbPo+TVmlXGhYHXShJmph/U48Uf9w/cBeOqylAkJc3ocOY9vLT5ghfoIqu7SOx216vuIuVJWS2q4HPeujjD45vdzDjn3BWeWG7uNMMteV5BazHoPhc2AAHJ5KvOu+z3e2xNFLcLZK9pOXkyR7/AE8ODj6qPk7AtUZbsfbR5OJqSf8Agokv0v2n2qyhqZ4HAwPcPPAJ6+q2vR1mr9Q6gibCHy1UsocXnnnOckqwrJ2AXYPabnc6KKPPLYdzyR9AFdGidF2zSdJsomd5UuGJJ3jxO9h6BRcbl4n8kk8TFitzLVa4aRhDi0Ze/GN7zy4/qVnoi1k1457diIikEREBERAREQEREBERAREQEREBY9c+pZBuo42SS7h4XnAI80REy6u3RQ1VZLM9lVQmBoPDxIHDGP8A31REURbOy3yaf//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAEEAgMBAAAAAAAAAAAAAAgGBwkKAgUBAwQL/8QANRAAAQQBAwMEAQIEBAcAAAAAAQIDBAUGAAcREhMhCBQiMUEJUQoVYXEWIzNyMkJigZGhsf/EAB4BAQAABgMBAAAAAAAAAAAAAAADBAUGBwgBAgkK/8QANxEAAgEDBAEDAgQFAwQDAQAAAQIDBAURAAYSITEHE0EUIghRYXEVIzKBsRZCkQkz0fAkQ1Ji/9oADAMBAAIRAxEAPwDf40000000000000000000000000000000000000000000000000000018k2fCrWFSrCXGgxUFIXJlvNx2EFSglAW86pLaCtSkpSFKHUohKeSQNStZW0dvgapr6umoqZCoeorJ4qaBC7rGgaaZ0jVndlRFLZZmAUE6iQwzVEiw08Ms8z54RQRvNK3EZbjHGrO3EZZsA8VBY4UEijbXdLbijhuWFtnGMQojTwjKeduIR5kHnhhCEOrcdePSohppC1kAkJIB1aG4/U3072ha2vW6N7bZsVqWZaf6253mhponqHOFgi9yYPNMe8Rwq79E8cA6rVBtbcl0qlo7fYrtV1LIZBFFQVJYRjzIxMYVUA75swXGTno48wtzcIs4iJ1Vex7WK4CQ9XtSJCUkDnpcKWR2V/R6Hi2rgpPHCkkz9g3xtLdVtju+279b73bZc+3V26YTxNjiT2ACuA6khgD9y9fcMw67bt7tlQ1JcLbU0dQmMxVCCNsE4BXs81J6DJyTIILDB1S95vtt1jsqFCub+vqpVk+qPXsWk6HXvzXk+S1EaddWt1aUFKlBQb6QQVcDkij7l9VfTvZ5hXdG9Nt7feomEMEV1vFBSTzSMQAiQSTe8DhlZmkjRURg7sFIJm7Zs7c149xrZZ6+ujhUvNLTUk8kMKYLZklCcASB9oUksfAIIOqSsvU9gVfI9vHrsxu0tuPsyJtLj6ZkBl6PyXW0S3J0aPOUhIUpQrnJZHT2wC+pDJxHffxZ+ldkroqOP/VF+gaappprvt6wNXWWGekVmkSO5zVNLTXDCKXLWv61MgRqxkIQ3TRekm66uISvLZqB3SKWKkuFx9mrkjkH2u1OlPJLTqTgA1Ih/qDkhFZhUNX6jdnLWvi2EXMmnPeR0ymoIp7826W1DylynRVrskOtqCkPI9sS24ChRBGrytH4iPR+/W+Gvte8EqhNAlQtHHZ7691WNyAC9pS2PXjsgArAyNyRkZldC1KrPTXe1BUSU9VY5Yyjsvv/AFVD9GcDOVrTVfSkEfcv84Er3jo4r/G8/wASy1lT9Hal5CEBakzYFlUPdClqQlQj3EOA+oFSSPi2ePBPAUknIW396bc3PTNV2itmeFCA4r7dc7NKuWZFJgvNHQTEMV+0rGQwKsCVYE27crFdbS6x11IY2fPEwzU9YjEDJUS0ctRHyAILLz5AdkAaq5LrawChaVhQ5SUnqBH9CnkaucOpAIOQfBHY/wCRkfvg9fOqR489d4IPRBzjBB8HPWD3nrXPXfTTTTTTTTTTTTTTTTTTTUWN57G1uG5FA/XwJTDEr3cKvtGWwwXWErESxSZCFtynI7hLzYWO2y521oT1IGsA+vNru24bFQWm20e3bgyV38SFBuCrSl92ppY5VoaujWojkpKieiqJPfRJx9kiRugJQnWS/T1qS310twmmuEZMH07VFvieVkhl4GqhkWE+9Gk0amN3UEFGKtgNjWOLKsO3KdliYcbmy1tOPlExiQ3bOr7jgUpxDjcl3gq6U9SilkAISlDLQSEjww9XvRL8ZG7b7V3K+7CvFXBHU1LUH+j7nabzTRRmTkrxz2q6VdYzsqqnMCEsC0bQKAI13N2vun03o6f6db5T05ZY1MdXBUUDYRR/3TJTQoSMH7WZznOXckO31Qcsz/D4rEe/M5iPLLcRlzuuptoXxSpJbkw0OtwwOOgLmK7SV9SVdQSsCY2ZX/i59JKRLNdbFvWist0VbcJqpLiLvYoTHHP9TRXCjjrJrcYgvFHrqWophNJIlTA/BynS6WnYO6JJZLYaGonpuU/ECF6GsAdxxeKpZWqCRyZ46cCQxYIC/a+rf5RuDatMLj0mxtnmLD8pmTbWF1Np58qxjRng80t51Fr35PbfSp1EWMr3bi1tJbb7aQ4i7IYb3PJWpRem1x3G1Xi53657yS5XC6bgpk4xfw+qmo6cR1chmR3ipUqoqhomSBhJCkS6nKSz0kDJJWbxgthVGp6KG1p9LTW8srM7iOZcxoQQJZ54nEal3kIyTrvccvs/uprzMjDrLE3Y7iYEahXXWSoSj5W1Jcuu5YNRXa9CAhLL6FNuKdfQlbfcKNSdLavWG53m5WS1enm5dsvHTw2222i27fvjWOkq1Yyx1i3uro61LfUWyLHsUjJU0MySyxF4JTxMO5wbUo6Wmqm3DRXVJgaqWuerpIKwoMo0Udtb2ZquKqYk+/GUki9tJHjYFmWopdvu08lymi0+SxUMOORFqdr7FtoqjuoU1/L34siJEcgOJQVt/AvONlAS0U+E2/V7Z/FnS1D2t9h7zMcEtLAKqqiv9rpFjjcu8Vvq6C62y3LQTcS6tGj1DQSEJJktGsjDF6cy/wDy5rvZ5HmjM6JFPRNKAyMHkqoamComEsXLg/ELEHDKXIILVpHwneOxs4sqxdraGiEZv3DFVMr4sy0cbR32pUhFzLFXGkkvrQlmG+2HEsNNWT3ebUo7E0vpJ641V6t9yrq6z+nlgWipDX0u3t3Uz3G7PTBqtJqqHdN3ntqzStU1EIQVSTGOOOG6OzxE6s5tx7BpKKohpkrr7cxUSLDLcKOV6WkiBERSE26mWpqBGsfuFmjKozvJSRLE4Vri1d/ktC9XA7gMVjdelwT6/wDxOxeT5IU4pfP8vpy7BjN8BCG4aZDwj9JR1uIHUdh9uX3de3LhteSX1yse3rXZUK7is9XvGHdl4uxMknNTabElRYqVXQxhIjWVUdPw9mIycUl1ZtytVpu0dwKbKrLhLWMrUVWLTUWimgcquMVdwSKskAYMWZY4y7FcMgPE5ANuLG7taJqwt1LWxLajSK113juPR3WipTh8JX21ntqaDiQoJUoAq4J16NWG4i72uiuMUyVFPW0tPVU9VGAI6mKZFdZkC9BJgeaqMYB4nBBGtZLrSpRV1RSKGV6aaWCZCQRHJG5VkBz2UP2sSSSVJ/QXC1W9U7TTTTTTTTTTTTTTTUWvVc3GhYBEvHEOGTBt24jT7T78Z1tqew+FNpcYUnw5IZj/AOp1JB88cE60A/6i0lLZPQobrP1kNxtd+pbdSVttuVdaa6JLxFUD6eGqoJFcLNW01I2JEljDIpZeIIOavQn36nd8trR0MNZQvO0EsMM0TzUksRVykqnJWKWY9EE5xy6GsaM/MbFpgGLdWrSVKHU0uS2+hXA8lRKGeQPI4UhQIHyVrwEg9afUek4fwjfu+qMoCGp6m9pWRhB44yxLTSHJ/qElMSR2ZDrdWn2tb5ZGFTa7ZIAP+4YpEcN3gglpRjj2csv3E54jVNzLB62PdkTe65wSlakrSOeeeSlKwjnnnggc/kEg6pNb6t+o9bUrU1m7L7JOAR7i3KtgPF/6siCeMMTnJOPB8jvVWgs9FQhUhoIhGCT7YWJvHWMmIscLjGDkA/qSfQbO1jMllN0+mOsgFtD8oDhI4SOBI4AB+uAB45/AGqhTetHqZFGYId37jCEj7Wu1yJwD1hmq+QAJ8AjPz577/wAGslRIZHs8Jl/2kxUxzjGDj2GIPWQT2M4+O6Vsr+bECVG6mJXyVJUJU8Dkc8BQ90ARwOPo/XkgccTdL6qeo1RKJTurcRZSpw1+vHH7TkZU15VhknyCR2oP3HNYptvWeXPK00gUA9NT0oOfkEtCX5N33kkdYyddMxldnKdSw/b2LjLIKmk9+R8e5wpfzXJJV1EJ5K+shI6AQkcajXX1B31XUdHT1W5bzNDQ+8KRXutc7U/vspqeMjyyTn3mVXcPKVDL9iomE1Ott2zQCWWG2USyT+2ZR7EIV3iBVG4LEAGTJPIHmW7617JmSupJBU6tfHHU52ufBHkLWhxYHI/BB55PIOrZW7X+oBeW61khbrk8rSyg+ciSRea585V+XQ786gwWikQZWCFByLYUMF7wMGNWVMDweSkd4IIONVViNg5PsoDDoDrbsuIhQdWp7w7IbaICHFdochfSlQb6xz4PI1cWwZ5qrethpK1pa8TXSkiH1sk1Z7ZlqoYecEM0phWVhJ7YdlYqhPHAJBpN+iSnoayVcRmOlqJCYUSI4igkft415/Zxz0wGQT+2wFUxkQ66FFbbQ03HixmG20JCUNoZjtNpQlIAASnp4A4HH4GvritNJHQ2y30UMUcEVJQ0dLHDEixxQx09NFCsUcagLGkYTiqKOIA66xrykqJWqKmpqHdpHnqJp2d2Lu5lkZyzOxJZmzkk9knvvXY6qOoOmmmmmmmmmmmmmmmo3erCJ7rZTIl8E+ynUM36BAQ3cQ2nVH/ay84R9eePP2NaNf8AUatD3b8J2/njTnJaLltC8qO8haXc1vimI6PZpp5gD8E5JxkHL3oTUGn9TrCoOPqYbpTd9BjJb5yqnseZEQAd5bHXyMNdjM7alI/bkAc+U8/R/pwB5/B/fXzO01PkDP8AVkDP6/4x+fYwCdekFFTCREYjOR5/PyCfB8EYIGf08DXWpnluOQVnkqACQSD55+vwfA/Ynngc/ep0UplmwkfJuJYnjywqAHJ89AD/AD89amzRAyglcDAAJJALHrGSPJH2jH6H41TsnIUtBbZXxwT5J+QUfAHBPn/0Of25GqpFanLK7oVJGMcRg48/djo9gZycZ8damxQIG59DAGMeCCM4HkZA7x57+MjVJW9w2+2pReK1JIBHJ48kHjz9g/n9v6kaq9FQNG+AmA2McfJ8jHjzk/l+me9TsEQQhcAEgnPxnHRz+QwM+Bj5z3qnTfFlSE9xDKzwhIK0pU4opUoJQg8FSggLV0p5ISkqACUkiqi1uyuwjZ1GCxCZVBzClnI/pHPCEtxHMhf6ioPd6deJyysCQAM4ww76HRJOCftz4yesHXXysklrWEpUnpH/ADHypX4J4J4PHnkH8/8Ac6mIbVCPPbeQOsDo+eiOvHQ+T2c51wlMqAtgDIyMEdkkYGez4yexn5z+d8do7duZkuLQ1Ol52bklFGSlHyUS9axE9P5Pjj9j4KgfzxcHpjaWm9V9gUwjISs3dtyiZQP6hUXejUgjGePX3EENgj4JBsXeivBY77UBMRwWe6TN5VQq0FQzn98Z8YAIGQc97IiBwD5J+Svv8DqIAH14419Z6f7j+btgfAAJxj9B4/YAfGvJbHHAGTgDz58DXPXfTTTTTTTTTTTTTTTTVlPUXDXO2T3KYbQVuIxSymMpACiXq8NzGuAfz1M8fuASR5A1rn+Li0C+fhq9aKDh7j/6Eu9bEuCx9y1rHcY+IH+4tTgBj/TnPWM6yH6TVIpPUvZEzHCNuGgp5Dn/AOupcwOSPJAVyTjvoD51gHsb5txa/lwSQCPJP9Qef28jz548/wB/lpgt7L92OmyynvGD4/uR2R/fXrBT0fthUxgKMnoEdkH4OPJH6+f0zYLe3Ir2Lglra4ytCsixNyLm1LEflezi2UvFFrtHaaXJ6XDFj3Fe3OrjJLbgjvSGX1NrShSVZS9MbfbZN1UVHeVlW0XuKo27cpooBUzUlPfEWhSuhhdoxNJQ1UlNViH3FMqwvGGHIalb9b6kW2oqaTiaujArYIpGMMc7Un896eWReRjSeFZIzJxPtthyPsIMXNnfVpR75ZRlFvicmXJw6Pgm3Vk43JdaaRjGZ2z+TKyHEpKHUMT1XMCEzDctZBaVWJRFiqZf65CAvM/qL6I3H06sNkoL1BDFuGfdO6qaKWCNne9bdpI7UlrvCSKZIjSVFQ8i0cIf6kNPOsiK0bgUTau6Kbc9XWz26V3tsNqtU8gkColHcql6t6qidZAsoqIYVj988faPGM8yeOLnbgbhT42HZi5j8d57IWMVyCRRtxpsWPKXcNVMxVSWXZqxFZWZ6WEtvyyIqHOkukI6iLF2lteml3Dt4XVlS1PfLVFcXmp5pYRRvX04rFeOMCaXFM0peKEmVoyxUZxq4rpJUwUFxejw1XHQ1b0yhkRxMtPK0XB2+1W9xVAZ/sViORI1GPZP1P4p6i87x+JjEuYui2y2/o8gy65kvSEyrHcvMahNS/igjPRm2FHEO3bu3U9qS+0q1nJgtNrba9yM2eo3pHdPSjat+lu1PAl13luevtFjt8CRmjodo2C5LcP4sZllaVZbyzW+OhpWVZFpIGmmdmyurA25uuPdtypY7ewkorFbKWouFQS4lku1fSiD6ExOPNGoqBUTo7I1R/LC/bz1Lxd+0w4lJdCk9RHlQJCeefPkgH+n2fB44J1rstuZ15BOJ6zhcg9eckfngD8u/wC+SmDkeOh3jzjwB+uO/kkjx+WpK+mCY1c7zbXVyVhRkbgYsyEj89VmySDweBwEk/XA8fgEjJfoPY2uPr16PUkikrUeoe1A/wBpICx3aCUtjr7QEBbv+nJ8A6x76pTmk9PN61AUt7W2LuwySMlqVk4g5z9xYAFcdeexrZ/H1/fkj+xPI19Oi9jP5k/5OvJc+f2wP+BjXnXOuNNNNNNNNNNNNNNNNUbuFXi1wfLq8pCveYxfxuCCfk7Vyujx/vSkfv5HGrG9TbUt99O99WZ15rddnbmoOGO2apstbHGAcHBEhQ4+cfmARW9s1Joty7frQeJpL1bJ+Wf6VjrYC5677TI8+Dgg561YciuH4jz6knp+gsA+erpAWCeSR5BH9PH1xr5VaG3K4SKRSGUBeJHauhKMCGwchlIOMjI84zr2xipwUUqv2kAgnwVYc0+MkcSD1js9dnqzt7k7jgV1r6geSUkhfIHA4UFcpUjkEEKPSofEjgkava12pInDAFCB/UgIIJHQ+O8/AwR5BBGojU5x2AR5w2Sp+QGGPuB8FegRnODrDd6htt7v08Rc0zjYmNk6sez/AB+4x3OMXYZXZ0uO1siQ3bu2VbOgLbyKijqaYkQI8lxqzr6yvW/EVKhMuMKa9CvSbd1t9Wpdvbe9TGtS3PbFyoLptm8SN9HXXKpWKSiWlqYalDaq9hM8VRLEslLU1E8a1McMzLIj637321V7Fiud32fHWyUd4pamku9vAE1PRxMVqGmilhcV1LGVWWFHdZ4YEJp2lhBVlobPd+9zt5ZmInbTCsgxCHmmE5PtJkzUmVEsr9pqy/lM2xkpo2pUdmkh0MB91+oyjIUstMqtkFYR7iIl24ds+mG0NgU9/G8NyW29zWHcdp3vaJI4KiitpkpzWQQK1zkila41NwnRUr7TbGLOtC3A5SQik3bdF+3VLaf9PWest0F2tddt2uErJPWgSGnkmZaNGT6eGiidvp7hWIEPvoSZA0IM3djds8P2PxZykxdueqbbyGLXJbi2lMzbe2txFS0pyQ9EajwmmIoLjMaJAjtRWkqWsF5ai+vWf1N3pffUe8mvvD0wp6IT0tqoaGOWGipaJ6h5CI1nklnllnJEktRUOZW6QJGgVRl7ae0LXtW3iloI5zJUe3PW1NRIstTUTiJYyHkRY4ljixxjiijRF7JLEg6vqnI3nnG+FkkHgnk8knxyf7eT+T9ft5xabVHGjjhjr8h10D1gfn1jJ+fJIxdOCuR2P756/U/Op6+ghLtv6ltoGOoudvLo9gpJ8jprosqYpR58/HtBafrykf11ln8MlqWs/Ef6TQiPK0+4xXZ+QbfQVlaGH/8AKtADgddd+DjE/rjUil9Kd6yknMlq+lBwSD9XU09OQceCfc6J68/nrazT4Skf9I/+a+hJfA/Yf415Tt5P7n/OuWudcaaaaaaaaaaaaaaaa+eUwiTGfjOf8Ehl1hfjn4vNqaV4/ss86g1EMdRBLTyjlFPHJBIPzjmRo3H65ViMaiRSNFIkqY5Rssi5OByjYOO+8dqO8HWpNvTAm41d5pGXGfU5T21437VsEPPKgyZ3Qw0lYSO46llLbIJSkrcQT4II+WautC0O+b5t2fjSSUO6bxaJjMCi0r095qKR3lDAOscSD3GyASg5fI17e2Gvjrds2e6Qg1Cz2KhrU4EF5edFHMQOJILsxIHwSQM96xsU+/LO4VL1UiIFFlyLaZAfxnJZLrMtqPXtRpU98MtgSz2IkyOHAUpAkolsAlxnWwl09KDs+5uLo1fdtvfw6CojvFmp0aNp6uWaCkjaV80xWaeCT7kdyIZKeY/bL91t2zeMd+owKP6ahuRqTBLbrjKYplESiWZ/bXlJyjikjI8fzFljViy5Eet983zeNgmZRKVVdnFvlcG0xSro8Tx+XPlV7N7GXXrmW8tiRJkCHAr/AHbcpakxxKnSWHgr4KYVmn0wsOzq3c235rqlVtagsj0F7r7rfrotLDWzW9lqoaK3UjQQRJNUV6xBOMkjQU6TKFChXFgb6rb/AEllu0duWG9VNxSe20lFaqQzzwpWrJC1XWTq8haOOmeVMME5zMhBBUjUf9umM0xVuozJeOPVF1Vu2yWMNrqSS2pdIunh1VzCfktwW5ClPRokabRP2DktSrRESrlNrabYKMr7tl2huCa5bbo7rT3CguUVGZr7Pc4Wzclqqqto6mmhll9jijVD09fBBHSx/StPWwsKiScrYtgp9w2uOjvdRQtSVNJJMsNqho5Txolp4aapiqHEaSmST2udJJIZZBUcIZS68AZa1GS270aG4xmdJZyglyY7Aua40kxcCQ0H0R50OKr3jM+AnqUXVxow4HZkMFTalHANxsG2xLWJVbeutuieOCnpai0TvcKWGvRjG7U88qPBUU9SRGPZE83FmlkilI4qcr01xurRU5hudFVuZJGmSvSOjqGpm5PwljWT3kniHLLGKNACkckWUL6Y5vMxkm5UDD8YiRr/AB96hF09lsCWt6MwtfuO2yltDRjrQlbLbEgl1D7MmS20pgcBa6LefTJ7Jsyr3BfKiptN3S4tQQWargjjNQIzEGbm8gmEkkcrTw8UZGhiduWcqsal3alw3Atpt0ENbQNRLVPc4ZiypIS49tgqlGA4qjsGDLJIo4FSGOcn9MGtNh6nNv3nEkohQ8rnqUU8gGNitqts8Hynl5TaOfrqI54IAFY/B7RrWfia2OnHmlBQ7or8AE4MG3LmI3GAM4mkjIyOyQD5OcefiQm+n9ItxjOGnqrLTAgjOJbxRh0HwQ6Ky58gHPeRraP+te7Q6AH5DXmD501zpppppppppppppppprweODz9aE47/AC76/TvQ9gj/AD2P76wGeunbmArOcjlxFNMWMmzkSewENsic2o9a0pUOnrko6+5ysFSgfKjzynwg/G7syj2/6r3jcNFDTwVlyqpaueKKGOE1ULcS8uU4ierimzK5kDyTQNIORK8T6f8A4dN1VVRsa1UlS0j01PSxQrI0hPsyRHiFHI/ZEwGAFHFSD/TnvX93Z2CB3BTntExXyJymFxbuksqiNKasWFd9t5VfOU05LpLBxT4dflx23UurS6pSC+/3m8d7F9WWXaP+kbq9dHFHKs1sudHcJoZaKWN0lhFVSFlhuFJDxIipZXjMREXAgRFDk677cppb3FfqZqUyvEYaymqadJI6iEh1kENWqmWjmcOxLoHRizkASMHWzKdk8icealcXj0uG7XvtLjQ7KY2t6qDYiOOpsXXU91SGkNyCh1CJZKi8kJVynIa+oMFRE0FPQwvBUirikYxRxkJXgrOFmoYQ5jBd5IR7ZamRESLkyKNU1bKkconmrT7sJhlRRKzqHpoxGjLHUs/F3XqUhlErZdxyOdWbmV0lF3ZVs+Hk1HOEmRIsV2MLHECPMclxJ7jclmFlNo+h1+TGjOJZXALCkMhp0Ja+Cr0WualoqeoR7PWxxRww00FPNeEkMEMNRSBo5Kqy2/mIoqieORnquZMzP98mGFEQwVNTNEVroOTPJNJKlD7YlZ4psTJFcaqRGmeGN1VoirCIHKq2GqagwufYuSYlS/Gt5c5Fo52bFEkrcm3Ehb7s2TFacdhPojPOlUVEiO6htHW20pDhS4mhV+7KOBIJ66CpoYaZqNTJQtEG+lt8QjjpIah1Sri95FVJzFOokYI8/ujGJ6K3lRKYJ4Zw6VRCVRkEZlqpPckqGSOQpJ7cjt7YaJ4wGZVVH4Fb77N7BtbWrm1qS7OuL+xbsLa2er66tVJcdSltiOzGq2GIkaBFJUGmG0gBZU64C+pxa8Z+ovqjNvlqWq4R0tDbaU0tFb4qqpqxGqsxaaWeslknmqpc/exKgqAq4UBVndr2Ki27TVJppGqpqqdqipqZIKemLuAAsMcVNHHDHDHklFH9RYs5Zss2zD+mBtTX45lsu+mJZkXkfHJiUOoAWiA1LDEdxppZ8Fx1DhS44BwU9SB9knb/APAX6fU1Ju2+bzucaS3trI0NFgiRbXRVjxc41ceKqrTBqCuVjjCwJjDM+sv4ntzzVu3KG005eOikusbTfdg1ElOsrIXUnPCNgGQY7ZQ3WADnC16ra0e0000000000000000000P0efr864Pg/sf101gS/Ulzasx7cy1qXFliXGg1dqtxxQZQWZsNl1t+O4UqSs9zrbWPiQWyCeCknzo/GF6N1O+73QV9Ohj9yGnZauNjyjeN1VRGoGfeJUlgfsaMYJOSDuH6D7vhtm3HpJJfugllHs5IyrM7YJyBxwfGfOcHBGsN1t6isTq8hht2MUTJKI8gSZ8VbCVNpebBisvx33GUvOvL8lbboDSR1LBLnx1HsX4bqkXJPaoJ3+hDrVuoEa1srxcImFM2EV4WI92VWxLlSFJblrONR6l0iIIGql/mcSoA6hCt2Ffpirf7VPjtuWCRq2uber/E4PYZx+vdlS3+8VuS5DUevhpaJT0zX2EyENPPq5TGjqfQ5JKVlrqCSrWYqL0SvUZa3C1LQK8DyR1TMnuFyp4iGnQKZSuB7zE+3ArKZGjLKNW3W+pFuRfcWoM7lgOAbsAHDszgkLjHSk8mPQU96xvbWbbUQ3OzHN5uWGQrKZ9w8xXhhxuQXruzVZSXLqfNnSE3Mhl9fagPJaiqQ0AFBRSlKY/rHf8Ac0G2tv7Ufa0sL24URevRg1I5oaNqCGG10sEEZt6VEY9yqSSaoLyEEH2wQaJsU22C8XK+x3ZJVqmqR9MwMb4qZhUytWySSMKl0c4hcKnEBsjtOOQ70/7VYrt9Jy/MfcO3FjcEIenWEhcmQpLA7vsmm1qUxHYacWhttmKhtA4A+XnnBFwqr3uzb7ve7PDTWjb1FPT221w0UUMMtXHH/OqiAhmqamYoqe9UO7sxdUK9AX4lZQ0FbLJSzu1TcZBJVzPVSSMFDFookDPwjhiDMFjRVAGGJyMG8N3n2PYJXM5LmFjVQamfLFcmVLWlCI3+W4+eVKJS0wOghS1cKSVI4JBPFien3plfa+oikFjkrGuMckEdB9O81QiOzF5/ZYYLFR7eCA0Y4EMCSpqVx3ZSQxOv1KwJTqJHlabjGxA/3sWHZJByQRnstkcdZwv0k92cI3Rk53/g29iZA1Q0UP3cuG/7ttkz58ZLLRlBIZX8I7gQlK1lKQOeCfPq3+FfYV12VQXv6+01VuhnMS0prhxqnyye4mGw4hiWNVh5gNxDE5GDrUP1y3DR3kWqOkrIapklkeZICCkeEYL2BgklySw8+fB1m41t9rXjTTTTTTTTTTTTTTTTTTQ+QR++mmtT3+JVy3cr0+Rdmt7tvq+A/WZdBucEvZ9hB9+zWXdI05ZVT6Wl8xTIlV095yKmU263107qwhQSoCyd47ao9xR08VaJTAiurrBIYXdcgsnuqQyB1JRmX7wpPtshydXvtPcVVZI6k03tmQurKZYxKI8o4DKjfYzBgWAcMvILyUjzpObg+urL8soq6thofosraT2r+1i+3MO1WnqbckBlaFrQqR4eH+mYrvxbU4jp1bVl9P7da6oTQqv0654Q/wAwMGyCGZuREpVVVWLElwAemzqs1+7qysiKF+E0i/zJABxbHbYXB9vPwqkAE8R1gjqdr/VnkWL1VjWZDXJy6JOnJloMmwXDdZcUAmQlaA0/EmIdQOQmXGcUz0p9u40kuBdfue1ILhPFUQOKZkQxyARCZpI+yCshZXiZXPRQ8HGBKjHJ1TKXcDQwTQzRtMXk9yN/cZRGVGBmPDRyciSSZAZE6EToAAJd7feojZXI3HLCfYWuJS62P7lymmoZZr5AQkqW40+hySZK0K4CWGA0pSQkrSkHoTj7cmyLhPAab6OGtWRSgq+KyVMTklFjA6dV4gqHkQjDcT0Sxrtq3FAkqyid4OJZmiJIjPg+4WJJ7OMKB0M9kjV2txPWPL2p26x9WBy2rWZZSojiUzFOraWzLcXYyXPBCkdKA2hogcNFwDp6UFItqzei1sroxS3ekEEaqHMaKFzIrllXsMCMhSwJy2GOQW6uCt3/AD06CSjf3pSeP3M7cVb7Sw44OesDxgfI1F7eP1kZdvtiVRik6li0XbuG7axVBffW085GZWxF7KXFlYdd77rktakgKWEdCUjnV/bN9KLNs+61VxpQk8kqMsRaGNHjMmA3LgqoAOKiPhgsORYljkWvf97Vt3pI6QmSMKyPKfcyrBclVUZyoH3dEHonJ+DvKfw2mwk7bz0e3u7V01Kam7u5Cy3Uty0qQRQYy2+yJDKFAHtS7Ga+nqA4UYaSnxyTl2niEaEBAhZuWBjGOIAIIx+vkZHjONY9r5jIYlZizKhZ85GHc5IA8eAD4+T+utjPUfVP0000000000000000000001CD9Q/0W4j69vSvuJ6e8mfj1dndQxc4Fk7zHeOKZ/UNPuY7brCAXVV7rrrtXdNNcrep581KULWEIMOSNZBg4yPBwDg/p89/PfeosMrQvyU+QVb9VPn/AI8j9tfkeerL0x7xekzezN9oN4cOs8RzLDreTAtIMxlzsvstuLMS1q5XQGLKktI6US6q1ilUadEcbdbX19xCJUwsi/3HQOfJz138576+fk+agj+6VYtlSfP/AOQRjBHgMB+uD3jrUY4GU+3eWHf8tKSeQfPI8Dgk88Hzz9AjyR9cnupAUAnBJ6z+Z68AeOh8/wCddVYsW4kHCs3HrJC/l4xj5z8Zz3jFf1l9BmeUvtpHjqKikdJPIHH3x9q6SPofXP47sgyM8TkjBByO+x/5+fnXZWLqzDAC4xnPZz8ftjPxq5lX7mxZZabmLltNrHajqkFxCCfiC22pSugceOEgDx4AHgciIKRgAsSTnvIGBk/HQ8E4J7Gu6SMQ5LAcSqn47YE4z+o8ePy/LWaX9J/9MTOvXNvbW0kmI/XYDj64N1nF842THqaESBwtafsyLEoXGrGFFKpkjqDXUhl4ojxwj/uTdIp6UMCznGR0M4+ez+X6g6gvIIxyYsQThRn+r88fAAPluwM4xnGv0z9rNtMR2c28w/bDBKxqnxLCaKBQUkBpKU9qJBZS33HSkALkyXAuTKc4/wAx91avA4A5JyScYz8DoD9MDr/z851T2YuzMxyWOc/4HgdAfn3+eq/1xrrppppppppppppppppppppppppqGvq2/T89IPrkx1OPepnZPF9wlx4i4dVlA97j+dUDKiVpRRZvjsqryWuZbcJdENuxVAcWVB+I62txtfVkVwAwyAcjsjsfsRqJHLJEcoxGSGI6IJGMZBBB8fI1rz7ofwdnoAyq1dtNud+fVHtq3IfU8qmm3G3GeU0VCyoqjwBY4LS3KGQCkJNhdWjw4+Ty+QEwnhDAgM6dEAjj0P0OOXjwScj99RUqnRw/CMkEnBXrvyMZ8Y+PH6asIn+C19PfcWFeuLe5uKp3uBqHtbgUaQEjnhPulXr6SQDwVCOEE8ntjkcQ1pWVgxqJnwMYbhjH9gO8dZOetRTXMVKexCoJZvtXHZ7PySPPQGAMftqRG0/8H16CcKmRZmfeof1dbjojPpeXUwstwDAKeeEkcx5qqTA7DIksLT1JWazJKySOoKbktqSDqJ7ILFizjoADIAHjJ66JOPnx+XjUI1UnAxhIwpIblxBYEfqxP9sg4z1g962PPSp6O/Tl6KNs4+0npq2zq9uMPRI9/YhmbbXuRZLbFtLS7vLsuyOfbZPlNwttIQJ15azXY7PEaJ7eMlLQjKoUYGf7kk/8nPx1+wGoDOzkFmJwMDPwB8AeANSZ1zrrpppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppppriokDkDnyP/ABz5PH54H4/OuCcf++P10/8Af3/QHwD+p6/PUNZXqczjGbLKouXbHZvJj19xcxqB3BqfJclD1ZSzbKrcft33KCM2ZU+XARMqv5K1YRZ1NI9+24HENx37aa/VNPJMtVaqtlEsqRGkinnPCGR4mMpMSgGRkDQ+2GR4uUnIfyxLn6H0e25eKK0TWL1H25T1E9vts10j3NcbPagKy5UlHXRw26OO6TER08FU0FYtylpZoLjGtHJwLvLBcvaff+n3OhV3OO5PS2sy5u6B6O9RXMmsjzsfZiqnuv3Ir2YcGO4+89GjNWSo00SIz0aVHYktqaE9brxDXqhEU0bvJLEB7MrIGgC+4zS+2qIObFArlXDqysoYEC0N8emFw2dUVRF1stxoYLfbLmkiXOghrnp7u830kKW9qp56qoihjimqpKET0ntzxzU008BEp//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwAAAQQCAwEBAAAAAAAAAAAACAQFBgkDBwABAgoL/8QAPRAAAQMDAgQFAgIIBgEFAAAAAQIDBAUGEQchABIxQQgTIlFhFHGBoQkVFiMykbHBJDNCYuHwFyVDUlVz/8QAHQEAAQQDAQEAAAAAAAAAAAAAAwIEBQYAAQcICf/EAD4RAAEDAgUBBgQEBQQBBAMAAAECAxEEIQAFEjFBUQYTImFxgRQykaEHQrHwI1LB0eEVM2LxkggWFyRDc6L/2gAMAwEAAhEDEQA/APv3JABJIAG5JOAB7knpxqR7deLeeMxorVp9+uNw6RTXWHGKZJZqU5ZeT5KpBS80xGUW1eYpTbSnXS2gjK3GQQSABWs9RU1S6ZumgJo326ta1q0tKXpWlKFEeJQS2VkpTclaY2w5ZhCVqV+dJQLSdxJHAuAJ9eJxA6JWLnoalGnVx9tgkc0GTFjyYv8At5A80JCE9k8jyVY6qJOON0zrzIJRUuqTMlpxDXdoJPyolIdCRcJClkkbnVhKkAwCEg3AVNzEEyJ0z1gDjE6Y1TrbGBNp9Ik7brZdkwlKwBupLipQCic55QEjsAAeHozBaT4yxE/zFB+6iLz06Eyca7rYCSYEgXifYTb+u+2HNvWCCnabSywnYeZHnolDmJAGUCKhwIyclfKQlPqO2/Gl57l7CCuoqGmwkgEJWHFSowIQ3qWepMWFyIBjaad1R8KCekjTNp/NAB8id7ciUTusb7ozT7bUUBRQXplRSgc2PQEtsRXSrmO55nG8DffI4j3u0zCkg0VO5UplQU4sqYQkiAkXQpSysmdkgJgyTYEFIoGHFBG1kjWojk2IAjY33PQX1jdWpdyVJ79X1B+BTIDwUXIkFtxxZbB3Mhxag9gpBX/nx0KGMJUFZFUzHtdXMVDbFV8EwhYK0sN9864UouVK2IGnUUlS0JMAAGbPWqJooKkd4opIkqhPMWmwAnxAFRHMbYhaJMBxTS1NIcU4kBOJHluKUlZyC0vAQpJwlSC4pQUFeo52dMdqKNSGigBWsK0oCwlwKCiFJ7pwJ8c2KdaiSFQfCoY05RLIVIA0mSYJB8PUGTawOkXiPmGHFLsIqPOgtpUUgHzkuE8wVg4bWohOUkFRGB/q5cjLtPaOmUsIcC2QpQQlTndlBJJjUUKUUgRGojTPzEAg4AaFabp0qgSSNQNjBsYmLbmbxHOJVRqmbdkt1KFUExVtNFCvPW0WVtKwVNOsrSC8gnG7a0ODqlaDvxJprWadfxGtDcJMr1AJIMmFAkhQnaIUZ3AJwgtrUNBJMGIjna5gQbdMTOfrwyyw2IFEEyVjleddmfTw0uAD1MoDLklxtQPN6w2UkFAUsjmLCs7bUzY7ujpVVjqTC5WWGhAnwkpK1CDuUgSCBO4KjLlm6192m+6ZPvBgX858hjA14gEFvD1sqD3fyqsgtHpv64SXB16FJx7nulHbcFA1ZYtC5AM1SSgSRcnutURNiJMdDjFZfBMPpKeDoM+4mOOseeOpOveWz9LQmEOHOFSJ7zqB8FtmG2pZ+PMQO2d+HS+17GiUsoSqJhb5v0hKUBRtuPcYGKFfJUd7JRPEi+qL/p52xEpGql0V5Tkb9YNQUK8zMWmQQglCU82Q/JRIfICQpRwtGAk5OM5Yp7VIrT3XxQaWdYU0w2qYAnUVuIJtBJAgRuQQcENCtF9GoWMqUALkWgEHmLidVvPG2dHa9WK5SqqqcvzqdCnpjUx93BlE+V5spp1aUIS6hBWy6hxQC0qfW0StCEESfZLMavMaascfM0zVUpqlUoAOBKUytCyAAoAFCwYCgpxSLpSMBrWm2loSkQrQCsRAk7ECTHII8pxqmbX6vVn3X5Nadn8wW39E7JXFZYyQkgRGghhPpSceY3lWc+o8p4nn+9UlQQsFR21XHH5Ji+3Qb3w0ETeSLzBg+3p13thvMqqNpTGiQktIJBddSoPJQhSuYrLbKlJSlBPMVEE5I6dq7VN5sAQy2FSTKwsLPUAIOkAA3uTtYE4eNrYsCbC8ElJtaQoeUWkb8HGSWhKHk/WTJdRbDaVKcjhxLPmDmWG0lTbSyWzgLJTygklsrO6YuqW+woIqfjnTpSsqp2ypuZKtAOlJGlUAyiLyCb4O2G13QWkgmAFmFEQLxJk+pm0GIjEdkzUtjy2R+7HL6HQhQSATgZUpawUnfuFKx3GeIN+ucS4oop3y0Ylt5pYUgEAEJXBVAuoi4M7bnDtCElIlaNfVCkx9AQPKTAt0xhaqLCFguMNvDBKsuFByR7lKgMf6VDmwRtg7hoqvZJ8dMY/NrJSVarRJRukAiZjYeWFpQQD4wSOSAfDPrPMG/wBpwoFejtFz9wwrzEFAQ7J5EY2Un1BnnUUkJAycJyQBueEjOWmVKIbaUVpKQ24+pIUAZBJS2o+EjwkxIJ2tGywVWkgAk2TJvxGr3Jt+W3GIjUHmn1vvvtMOB5bhcBkoWohwqSEBJ9XoAGAMhKeTOASOK9mFTTvuOOuMtOF1RUoCoQVnUNAsYUkIAlNyEjSYBODtpKAE6iAEwPBYWBJPEmLkkX26BDDdRFCgiQ6yheULWkLSVNrUcoW5HcKlcyFKSslAChggdRxGUq/g0KSl5xptQUCoIWFaFrPhW6w4rUotqKFFSEhXh41DBlDWbpSo23AmQDcBX8pAi9uJsccbYK5Da0KRNjIe/eR23XmHFo83zCrfl9QaBSSghSAorHORy8KbNSX0vNOpqmEOlKmWHHmXFN65shSUpWUIsqCdIOopVEFKglKSlSQhRG6oIBiLHUSASeREgjiQolxYsZxtS1Sy082l9lwOpdV5KyUlHKtKiFNuBTQUrkDvllwICFY4nHahTa0hYfdCkd6gpb7xRQrwQU92VJKFAomRr06wAkiQJbQJI0oMFMzpEjm5G4OrY7xIIw50mk0+ozGmJNWlU2K4FlUo0t6f5S0pykLaiucxS7gJygKWlXInlIVkO6NtyrqW0ldTR07iFFTqsrqXylYSVDV3SwNCiCJAJBgQZsha0obPyOqEWD6ESCepSoyPOJ++JE3Z0BMhSBNuOpMEDynaZacporIVylKxVJUZKcJwULQpxKidwgJ3lk5U+HSicyqkWKHKXJHWlSSf9z46pZQBsUqSTMyUi+AF5uJlpBvZdQlQFhsWm1EwbRAIuIJxIY9rUiMQpy0LpqGMkLq86HS4yt9lLjwW5DhSnbmb888/qBLZ6SdPkKjBVk2YPECxrq2ipGlWsVNUofWAIulS1BQkSBGBLqgkEJfaA57tpxwz5Lc0CT5Ji25IMtdSpsBtghiFEor3mlXnGYFraSUlLqAXjETyLTtyhC0gklJKiSVVHZlGi5ostVqCwtD5dcQFCFJTqDAIItGlWkyQTthKay9krdtEFGkK/lJgrNuDIgcYy2bJrrVQRCs+dUn5K30F5EHzX6eCVJSp+olxCaehlCUgrJSVFKT5aiojixZHSpoWBT0b6nwXCtahqUFKISkqKilLYT4eEmYMXvhjUuKdWFLQUq0hIFhYEkb77nc9PTBF6gWtBqdJfqDECCKjBIlLklhCJDsRpC/qGi+gJWSEEOp5lE5ZCUkFQ4nMzbcNK4toIK2wFwoC6Eg60gxvF0iQZFjgbWkrAVMGwInc7WG9+PrjRaYSEMJWWlAKynIKlJI64wvnHQdMkbdOKkirqWkBagpMqIIQtxKY8vEoC9ri564elptRiRIEEFKbjcflEjzG+OKQgpwkOJ9PL6HFpyNuySgZ2J2AOccE/wBUfAlLjthEhaVR7LSOT1tfnGdwj+VJ34IiZmIPnf8AphufbW4kIEiSgDYAOKGwGBv5ihjt067/ADwhWb1IA/iqImTrZYVf7TtyPfjGjTNWOna8Bat429/Xb6BqcguEj/FuKGd+dCF7Zxj1JOenuRnbpnhurNqkT/EaVN70bRJI5mQAZO49DvOFCkRYwong96qbTYSn1ncYVs8jDa0Lap7wUCCZFNbeWkYHRQCFdieuDnGN88DOaLAJUKUpIIJVQtyZPBCotueJixjBBSgWBWIuD3qpG55F77Rf6YSvvskBKGacghWQtumFtRTgjcF1QH3xnIG5Axwy/wBZQNUNUZVMCctSOuonxnfyiTxxhXwqiJl4RJ/3zJjyCfWQTvaMI0KkeoJbhKQopUtJiBIVyA8uQCArGTy83MUkkjBJJxOcOKkJZoAhW4+BCRbYqGuDueLG2NGlAPzvE3Jl2DxtI5H6Y8rmSGuUIbpycKBP/p7K9sjoVAknOQD1xvn3A5nTqFQlqiGmw/8AoNyCLghesx7A+cRGFilSQbumTy8QI9I683/t7brNRGAFU1JHdFHg83TGUlTR6DbpnO4HYDGfVaTKVtJO8oo2Bfi5497Rva6vhUHhVrpl1Rg7XsfW3vfDo1dVfZBS1Uyyk4JDFPpzf4A+QTkYHb577nPaLMIgVLqdh4WqZHkL6VkCeAI9hjXwjQPyJJgEklaj0gbD93G5ORV0XE4AFV6q9BkNSEMJ6DYeQ0gpx2wrv9yQqz+vN1VdURtAdSj3IQ0kjmb+QO0qFK1AlKBH/GYv0USL+g95wzSp0iUSZMufJz18+dLeBO/UF3H8hj3B4bKzWpWDqW4ux+d6oc38ioC95kekcLFOlO2kHyQge0xIH28tsNSnYrJKi21zdT6AtZ2I3K+ZRyDnJPfPXPA01zkyVobgSQkJCyJ22UriIkR1xstJiIKiDzMfTbpb/ODI07oyaNatOSVJU7UW0VV4oRyBBnNNutsgYBPkM+W2SditK1JASQOOsZKwWcvpypall5IqTqtHfpStKYkgBCYEbTJtiFqV63l2ACToAgD5bE26mT6ROJZUWvOp85nGfNhymsdc+YwtGMd854kH062XUb6m3E/VCv364EkwpJG4UD9DgWnneWOhHNjHKTg7ZwM5zjBCvyxuSDxzhbpDSEyoGZUAbcjy3HUCfLEoE+IncmwtETtf9/fCP6pYRgqzjblUlJBB3z/Dn5ztn23xwH4lwWKwQLQUpMDyH+T684WG5VPmQbkEH12iI8ht1wlXJJB9CMZzkpx8diCfx6nt7N11R2hH/jc+XhgD+29sKDcG5JH7+g26+UcpFyQP9KT12HT+px+X24bqq9xoTyDA/v77YVoTuJBvBHE/v++EjkokEeWkAA9Bg/PXfp06EfjwzcrCRBaR0i+/X1HE7X3wRKFCDJgkeZg8i9o5t9MNxf8AWAW0Ht+B/D7bfffhgagFYHdJN7XJ3iZtv7z0jBNJ4Uf3+z+93VtxAR/lN5wN8DBOMj+m+5z/AEkmqlIRZpsGLwSTFpm2xvIAIkxgS0mY1QBtG/vceu3OGmUv1H0N752x2yfjb57degzxG1VTCiUto38xtubACfOPpvgrYMbkz5c/vp7zhGXl59KUpx7JG+2MHcHfGew4j11pEQlAje0gzxBg2sbX9ZOChuZCgQCOvNotOMa5TiMghPx6Qe+xzuf7g44GczWmZ7sADfSOfU7R6WjG+6B2JvMibX3PH3MAffAqY4ceopPXbA/M5O3QdPy2bOZqtRs5FuEpSONtr3tvPpgga8gTvJHt1g256c4RuyVKzzLUo9N1bDbGe+32G/AfjVLMd4sydtRI8zY3F5uIkRtjfdhInSBf39cJHFkIWoDJIVj5wnr03yf647cPG1Hu1EWJvtcwCeZ3P1nffCCmTHAHl9Isbx16+1hlHa8mkUpnGPKpsFrG23lxWkY227dtuPRdGnRSUyP5KdhH/i0gYqrhlaz1Wo/c4cCAoEHcEEEfBGDw4O3rA+pj+uEYE2eny3ZDahgtvPt79vLdWkD4ACdvYcckqXYcdRIlDriIO/hcUDbfi5vJ54xNtpEJVM2BH0/cfXDOVAoVvnc/123x0+Pg9NuGxdBSSSJNpmZtf38j99sF9/b+u39fbCR07EDbG+d9v5fHt/LrlqtdzeBMgc2/SfQb77RmEvANSuu/ECMKAJ9rRsf7dfPGBzqrtt19tv8Ap/7uBSgRvI3PEfu+84KBAAwhOArPXfJ+/wDx/wAcRi3AFm0gGRcxPG/QHe07bGcKCSdhb9f3t64W+cEpGNsDuCSPw2xjPT8O3BDWBKREzEm8g9YukyesYzuyrdPlv/1IwicWFknP3z0wemfz2PXJ6Z4jX61KlEk38pNyLbGx5sNjPXBkIv1P2H764SLWkdTsOgx74/ljbHwTnfiNdrI+U83vEeZt1mxPPGDJRFzBtt0P9cIXFlRzj599sjb742HDJx9S9pVxABiT6bgWjrzvhUAcCb8R/T2wic5h7jbHUj7Z227AH8McN9awZPrcHf8ArzvOFhOqbwZ6fp05ttthKpR5s5ztjv8AOfbuc5Hwc5zw5bWQsKIJ6A29bcW5HuMJUAQOnIO//V7bGfTHbeXHWWs553WW8f8A6Oob6Dc5Kv8AnO/Fjp194WkbFbjaYufnUlMTbg+Q9BhsYAKuQCQfqR/advQE4sgZR5bTTY/9ttDe3+xIT/bj0shOhKU9EpH0SE+fTFRJkknckn64ycLxrArXQ35FcrLIOOWpTSBjohbq1p7dClY/I46Hji2cKLWaV7eyU1b4Am8FwrHJOyrC1ud8WGnEtNKO5bT9eTf2+/riINrKw4nOcKyPnHz1z/3J4Yd+SLW225PPUec/QcYIUX6RxH0399/IY9KSRv8An8/jk/fI4bl4W8UTaw2879bxHTCgkWAA3t1364i9euakW29bseqvusPXVcsK0qIluM9IEmuVGHUp8OM8tlKhFZdj0maTMfCWG3ENtuLSXm+EqeSlMk2UQLRMm3lM8xP6ztKNWogTpBWfIWkj7H9ML3HNgE5JUMgJGScjPQZJ+wHY526NHaj5gDEfoJ3tAjckGesYWEHmw++EK3cE5IO+fvknbA/I7Dp88Q79UlJuRsTFvYyD9f2SZLZ22Am5G/T/ACYO222PBkDHXpt2yPz742Bye3EU7XrA3AnYg2iTcxvGx9ucGDW1iZ/xtt7ThK6+R0B23JA/hHMU5VjZO5GM7E9DjHEe5VDwkqJ1fLGxjYSbm0m+4uJnBg2ADxFosIm4gCdubwDAInEJvW96PYltVa7bgclIo9FbiOTFQYi50rE2owqVGSxFbKVvrcm1CM2QkpCEKU4r0Nq4SlwLIgzq2uOJk7TaL+QPTGwgT1tyelydrRFgCZ2w/qkKSpxAKcoWtBIUDkoUU5B7pOMgj+IEEe3B0OmAUwY52t5CN+nleMJKSTvPmYt9N/K20DGMvqxjmGcdSAfkdsdMbfG3XhRdJvMmLE+ODPQkT7EGbYzRF5PmB94/69cYVO/Y57kAfh0B7e44M06kH5QDIPPHvIvsRMeWBqSdv1G49LEfr064XUVP1FaozIwfOq9MZxt6vMnR0Y7k5zjfOfYg7z2UqD9fRoI/3KymQAOdTyPobiB59MN3wEsvGP8A8a+SI8B8/r5HyxY4Nv5n8yTx6fF/v9jGKfjvjRuD6HGYGO/m/IumrJOB5i2Hx9norKiT+IO/HCu2Lvw2f16VKCQpTLguE/Ow2rne4Jn74s+XpK6RpXAC0kxOy1W9I6/TEAQoNuqUFA5yfgjPx3ON+vb33qhzBKVHxC4EkFM7zc89YA/y97kkbfa0bW84NuntOM5eQdjjJBzjIGfbqR07/wB+ihXtrNyL3v8A2JH9rEbwCPulCJBME6TEAjeb+d979TtgbvFNQriq+lUmvWRGdm3rpfctsat2rTWUOOuVqo2BUFVObQEtNYecNw0B2s0VAaIdQqcH2Q660hl3TtayQElUBUAkKsAFD/kCAmyuhAjBWUFK5NwsKQoSJhQInbeYNiL8wMCJrp4p7O1d/R065a+2LUa1YsRNnXdS4qau79Lc1mXjbt3waIzTqomlPc8aqsVFNOlJjxnedcacwg8yVu8N/iIzFijUAtTjjX8NCkkOtvI7wKbWYBQtHiC9rKMHTgyWFIgqmwnXBFvQggEGxFzxucHLal4Uy8bWtm7aY/JdgXTb1EuOAuoQpNLnvQ63TIlSjvy6XNQ1NpzzzUlLzkSSy2+wVhtxCTkcVCozFTZW2r5m1LQpWoKEpJCiCLKBIIBBIVumdsOQwZmNpNrWJOx2Jgi0EjabSHxUtIzg9uu2On5fhuf5cRjlfI1FXHQyJteJFo5O0TExgoagGNyOviv9h/jAJ+KPVaBZfiD8BlAqFZqlJZurXW+YrzaY81u36umdo/dlqUuBUqs3inidFuC5qTMgUucsKeQ47PYSVQ8pd0anKijzl3Slz4WiYVq1IK2gKxlSloRIUpPdocC1JBCYhXzgHCiCgC0k+k6VGPM+vFxMYg/iJ1k/8n67Wv4HrVotalVaoM6f6r6r3fBLL9JtKw6RXZtws27Vm0ESaZVa9OoFty48mUlUB6BM+jKW5kqOompQWqBzNXXGw2Vu0lM2srS48+UJSpaQQEqQ0lxzVpOoLSLaQSNBACykASE6zA2BMAcEajeYg3xYaZHmLW4cAuLWspx/CVrUrG3YZx8AY68MUVogeIgQBcpJGwEg9d538sJLRudrxEeU/TzFhexOPJezsMD7kgn3PQ4H9PfpkwrlSPETz+Xrv5iRcnrtOElsgTNuLH3285gXPpjEXT1PTbrn8QCd/sN8e2Scu2qwEjURBm458iImLHfyk84EpvkgjYW9bdf3vxiT2Okyb1tJgnIcuOkkgdw1MafVn3AS2c98EnfHFv7LEvZ9kyNwrMqQ3N4DoctMR4UHaQPTdlWJKaWoJj/Zc8/ymJtixbj1P6YpuOcZjMDRqyBGucuK2EimxHQfcpU+wf5BkA+2Ukced/xSWaTtAlUwh7L6Z2SqB4FPMnpt3aZuBcbTi3ZGkuUhAvodWIEA/lV7jxG/twcajdlgKJ2CcbHr7Duffc4/vtyhyvUldlkTAA2G3MX9OBvwMToaSABbzkbn1BB+/wBBbGH64DGCOmM7k59+uf7Yzn53/qfgEkciTI+p9ptHtvhPcCdzHT/Pl9+owjdqYZdaezz+U808E5GFBp1K+XGTjm5QM9Bn75bu5orhfBFjvYyBaIjrJPnvjYZA4+smb3PQeQvyJx8aniJs6+vDjr1qXoxXq5W0ad3XqxM1Trdq3JUarTtJdToDl2/tZpXdslCF8kmMwai7al5IglK6VMoam6ol2I/CDd4pq5rM6FmsaCTVN0opWnmEJVW0n8As1rEXGuE9/SqWDrS6Q2QtKsaDYbOlQ8AIUUqVY+KUmTaDYKg2Ivxi/useLegUrQvSbWm26T9fW9fJlh23pVY7QYcnVG970cp0FFrypLbQfiU23Y8W4n67OyWae1S0OyG0JWhpXM0Idcrswy99xKE5Q3VvZhUHWG2qekCpdSDKSt1xTKWkmVK72EkkSHZQAG3EpJ70pDW3iK9gTPCQom/F7STtXxCa1ztCbCXqdU6dNrNm2vdNspvabDdjuTrZsaqzXKLWrwEJkpNWetyXPgTJMZJDH6t85xtLy2t4/K3E5tVooKd1tFW+y93CVBQTUVLbfeop5P8Ath4IWlBNyuEkwcKdbLKCtYIQgiVAglIUYkxc6TcxaDIm+K6f0sOtFvJ0n0n0+lLpf67veoz9WLUuyROfjy7blWLTRLtGrWxJpi0SGq3Wa3X6ZT6UorRGfbjyDKUA0cWLsW0uqrq+qS64pujS1R1FOloEOirUpFS1UBaSFNNtMuLeUD4SURgNQNKEptKpKSTF0/JBBBPiIAAnmYFsRH9EPpnekq8dbPErdVTuqtft7RabY8i8LvlzKlUtTrvj3ZVrnum7IlTmqK6nQaLB/Zy24E9ptMSRUBUm4ISxCU22/wC1uYMhvL8qYTTt/DKcqBTsAITRMLYZZYYUlMw+44l59aFErSlSNZ1G6WGlBTjigSCAnWblZCiom5PhAKUggBJKVRwcXqiQBnOR79QN+3Tf8/kjoKWHymbWEdQDJHrJ4EDiJGClF9/MEjjm/Xr7e3XnjGCRgHPTbfGDkH298H434IH7i5sQDsAAdo+u4N/sUqSIvf7cnbmDa4tv7dJfyd+mcZPYd+3XYfH8uH7DyitFyReR5CPqLdRv54EpIg7bzePQDpFrb+WNgaVp+p1JtBobhFUckEf7Y8CY4FHY9FBO4PbY8dP7AHve02SIO6atTkcwimeXMGflMHggWI5xD5oQKSpI5SBe3zLRPPPG/pGLEB0H2HHqvFLx3xmMwNWuX7qq0R4ggPU6S0dtiY8oKHzsH8nsNvfPHnT8bZZzDJnxH8agqWSbC7NQFgSZ4dNtt5F8XDszCmqlPKXUKieFII+sp99sD7IlDmJyT17479O5Hz7nbB7eeXa5KVHxSLxcDe/rb0G8zJxbO7kREqPsPQneDbgzF4w2uzeTJJxn+w7HI9vgfffOxWoUmQYA8xJ+ki3It5jCS3PAM9bR+v1GGt+dzA+rqPk75/v/AG7Y4A/WC4BAMbkybz+WNvLjkDGw2fS+3l5RjROtWkOmWuNoz7Q1QsW2r6pDrDxhRa+wtt2nTSA4zKplcgINct+QJDbLi59GdRJbKEr8qUUJZU0p80rsvqE1NDVP0zwJJW1B1p/Mhba/4biNJI0OApMkeGdWCFtKwELTqSdgRcx0P5THI23x8leuV7X54Z9R6Rp/ZczUbTeFonrLE1Ht3R3UmpwL/ty1LwaQ+5AuuzL0TTaHKr9rXZRHXTKjJpbKX4UzzKjOdqPkqHacpo6XP6Koq6tugrF5xla6B7NMuDlHUVNPKAunq6MrdRT1NM8lIQsOE6m/AgNzEW6tbK0JStxKWXkqDKwFBKzOlSVwJQtMykDkmZibCtXfGrrd40fDBqHbOjmgVYtyjTac5E1KvCdc1Iq0dy1qRTWa9ddGsiisRm61UanNTH81TkZmeabbkaep19qWoSGqBl/Z3K+yPaSgcznPmHqhLiF0FIzTvtKNS84timfrXyruWmwTEFSO8fKAElGoF+485V06yxTkJJIWsqSfAkBSwhAgqUepEBOrkA4hPgV0toXij1Nh6mapWzVfEbRrWTR7XTferF2KpdBt+PbVJjyKXSrJ0do8KVEn23ReeHDZeuystU6RUHUhijPzDNVDfdqc0qOz1N/plC8xkbtT3lQqgy5hT9Q6KhxaXHa7NXVoUh96FqLdK0VBAkuhOkKRTspfJeUFPaIQHFkJCYTIDbQE6UndS1RuAJJj6OoDMSnxI0KDGiwYUSO3GiQoUZmJDiR2gEtR4kaO21HjR2k+lplhttpsfwoSMjjnrLpIKysqVcrJMqJ6lSrmYkqO8zbk6wb7WNrSZJjkxHltttGHAyh7nv8APx2PtkfIx+LwVYWJEEbkjqNxqmLDYGT59AlESYJE7nzHSTAgxsNoOPP1IGSN8dMZOxIBznIyPnONwRseCtvIBiJkD5QSkTwTAEE7kWi4nCSLRE2j+sTMgGOvuLY7Er5GDjcE7H7bHHud8HpxJMOGE83g3iOh4m0ggdLeQCJB68SAev72mPPG5NCUiRqhQVHKhHhVuQR2BTTXWkn49Twx/I8df/C0d92uyywPd09e6YNkxSuJSfOFLA43HniEzkxl7o5K2hv/AMwT67en2xYNx6q2xS8c4zGYG/xEp8qDbMwbYl1GKpXf96xHdbH82Vn+nfjz3+PzZTluQ1KU/JVV7ClTf+Kyw6kSdv8AbWfbytbuyZl6rR1baVHB0rUD57KHlwbkYEt+djorGw3zvjIzhRxgZ7Z779s+SXqhWo6ZEFJNgd7c+u94g9bX1LQ3KepiIIIMA7bD93vhpkVAKSRzbjYZzjKgSB06kDYbZweBprIChsqQReZIPqOZnmTNzGMLW20K39vT1tYcYj8utR4rbr8qTHiR2ULdeekvNMMNNNDmddcddWhDbbSRzOLUQlAOVKA9Q38XrIEKKlWgCVExNhJJNrbHpOEd3ptpgcm2xtMm53nqeh5hVe1Ds6hzH6dXbstyjVCOyxIkQqpW6fBlsMzFKTFcejyX2nUJkFJLKlowtKSsZQAvjCX30JU1TvOIVqSlbbbjiVxYgKQkgxIm9iYsZwrSBI1JGm0ki1hEgkG8j93xWf8ApNrgsO6/CpBqtOrFozpdyapaXUmw7rH6onqbnuXe0J0u36rIYkrQ1DgR5z9QdiKXEFPbkfVhyI4eexdgzWN9qHG1M1aUU2VZq9W0w75AU2ikOhNQ0hSIU4tTaW0qhXeFIQQsDDeu0GkBlAKnmUtr8JvrupKlDYJSSd4G/OAXkVC2tPka42db2rP6m1Zb0ffXqtQLEtOuWXbMiHZFrXfKiVGHdtqwYtlyZeoy6naMuq1eiU+K1X3U16mQJc6JUk0+TMtpq8wVkdfUZSXcnVnIRlNRXVlPXVQXXVVGhba6SqcVWhOXBmrQw0+4ssBTDrqEKb71I9TbQqGg9DwZ/ioQhSEaW0LVqCkpCD3koJKR4ySn80Yt/wBENUrMtrwyac39VIzNBhwrIsWlXZBplAYplTg3kzT6NbdYpNTocZiC5ErUevOLTLjTUsvxmXfqnl/TOJdc59W01SrtJmNE2pTyzWVy6Za3i62ukU46+y60+pTgcZUwAUFEhRGkeIFIfIUj4dtw+FJQjXaIUQEqBTAIUFSFCBwYAvjfZ1f06FPj1Rq86HNpcusN28zUaZKcq0JquPMtSGqXLk0xmY1AlusPMOIaqKoufPaT/mLSgmQirKlNmmeQ4lovd2tHdr7oagVhCykrSClQ8OoQCRdNgrCQQoKQRMbhQkiQDH5iCDG/PGJuZpSspWVJIOClQIUMEjocf6gQcDtjPbiPRW+ImYOqQL3sCm4NlC3MmwJjG1t2BjfeRadiD5j/ALGPf1mBzKBSCfSrcJPMAonPTcbgZ33PfiRYrDymBEhRO5mSTBIBJ33JIuYIw3W1e3AkkJI9RxtA2sZ5vjgllS0gKPXHcpySdskdsgjoOuc8S1PWKLiAlSyTKYSmJKoiFGQYNiDaZ2jAVNgAmBtY9NxtO9xvbztOCO8MaTK1IfWckRLYqrxJwSFOTKZGHbYkOq/AEDbIHefwVCne1Ty1AzT5NVuGbkKcfpEXNrHUQNtrDFb7Q+GhAB+aobHMkaHFdIsYxYLx6txSsc4zGYHjxKN4sanzBn/CXFDBIxkJlRJzG+42K1I/EDuOOIfj3T6+xtPU802dUqp/4vU1UyQfLUUnpIGLR2TUBmS0H89MsAWuUrbVz5AzzGALfqJ5Sebp77bjPfI/7nvx4fWu8TBvEWJg36wBzxzGwHS0gE88npIsI9N+ffFRXid8TGrGjniEqbsl6rQrDo9u0mrWvEjSZDNKukBMp2s0h5pbLsSTNMWMqYWEluRIeJilUhww40K5ZLklFnGUNlpTZrHKp5moUUha6ayEsOpuCEKcUGyogoSPEQkBalNHn1svHUIaCQR0UL6xzcCCRckdCpMGLUK7pZr1XaPSKHdzkuvae1KhX60u3VNPGVS6jHSpuC5KkRpVPqlEqSX6WK9Fabkp52qexIQhTyVCqoer8tplLqqUNJrEPUau/SUlLzStKlJSChbTzelzuVK0yO8IkpjDhaG3FWVKkeOB+ZKhsdwpCrGBNwL4YajZPhtt1+mNVqDZ06r0WmGjU9Ncq0y7LhZpX1s6c1BXCM2pVScyw9UJLEf6uBKXGhBinJcESIw02T/UM+fS53S6ptp5wurLLSKZjUUoSXA5DTTZOhKlhLiAVErjWokoDTCSnUEyBpGrxKIvbckwSRtZMXFhim3x16P+JLxJax0a3NKtGbtb8P2mNNptKsJ+kUKm2hb8+XW2osy8rloUC4JVuwn3G5RFKhrWiA2YlKS3FdCZLq09U7D552Z7NZM/UZnnVF/7gzN19+uQ6+7VvoQypaKKmfcpkVS0pUkF1yC6rW9Kk+BMxFexVVL6UNMOfDNBKUEICEHUJWtOopBhUDYSAYkk43H4T/C1f2mdmXI9rFa+oLt0MsQKFQGP1tp1WKIi0XZ8OZV4XquJ2c1WX6fHnUGhR6zVplCtxFwynqLCYeflzDWO2PavL80zCm/0aqy74MqW/Uq7rMad/wCM7tTbS7U4bDAcW3UPqYZRUVSqZAfcUlDaA9oqVxls98HNYAQAVNrCkAyRAX8xgpSFqKUhRCQCTgg9Ov22sbVKLXrl0auGi2DrZS6lU9ZbCpdvVq/Le0+1PhLTPol+T5jj9ah1ZdfiPN2pV51vx3WmGqXTZBjeSwy6xAVrtDWZY4xS5zTVFdkTzTWTVzr7FDU5hlbn8N6hQ0lLK2vhlpNUwiqUFKLziQqVFJIjWhxKlMLS2+FF9sJU4lp4QQ4VCQSqe7lIM6QQIuDDjTdC7lgRrSgzbZpzLVQqNXjW7T5smw6m1VqjT59KnVJijk29UzNVDqk1sS0xF+Q8+JDBRIbZdRAoqM6pHDVLRUuBSENqfUhNa0pCFocbaLyPiGigKaTYuAkAoIKVKBOUMqGhBQJ/Ik6FSQZOk6VTc3AiSORhvpdyaV6BOU/TV+8qvEm3AazdFvwrwrNQuB9iGlDUVqlwp0lClxqNHTTTFoVMdKwWok5ZfcWmQ+pwpVbnKXcyTRoLdP3NO+ukbQ0gLIUrvHEA+N1Xe6nnJI1LREApTgehLPgDhBUFFPeHVIuBAIgJ20zP5jtfAK+FPVHVy+/ELWajIua46raE6Qp6VR5kSbHolPoztHgS6k7Gcnxo8qpriV2RKgoqs0EPSWm40ONTX4jcSVf87osso8np20MU7VQhP+8lwOOuOB51KAtKFLQ1qYSlwNJulKtSytKypEY046t5XjVpFoIUAkQCZMCYJjV8omw2GLckTACPWMgDIJ6HGc9cgnsTgHG3sapTLQlYKVggREm8kz6mTFt+mDrEjr5XP6f9TvgufCEr6q8ruk/xCNbUNkHJPKZdVBO56kiH22IHHpT8BB3ucZ48Rq7rK6ZvVuNT9XqPTcNc39YxVO0w00tKmCJfXuN9LfH/AJGcWA8eo8UzHOMxmNE+JGP5mklwyf8A6+RRp3QHARVYzBO+wwJPX75245Z+M1Iar8Ps5IEmmcy+pB6d3XMoJHoHTM2IMYnuzS9GcUo/nDyPWWVmPt/3sauF1dOSlSgk4yPnfBGCMb5znA9j24+fr5IWttURf5jNxAtz0Mjyx1lO1iDAA/Y3/tjTWslj07Uu0alSlxaa/XYkSZJteXUoyZEaJWTEeQw1MRsHKZUFH6WoMqyloON1FkJmwYriF5bXLoappzW53C3EpqQhcLUzrSSUKgkOI+ZBMpVBbVKFqGEOo7xBFpAJTO2qNj62vwYO4GKpvDvQLO0+1uYsrUrSvUGm3xezFWpdKvCp1PUAWhX0swl1pdNlR1s02jT5sdqM5TLgMip1iLKXS6RU6cwmmNyjTOgdpKivrMkNflua5a7QZeplb1G01l4rqYlfcBxKwXHksrUsO05S0ytIdeacJc096wpUttvd2428l1xKtK1FwtqgarjSBMDxiVDwggabghbqNzGkV+xrX1Rbo9Ui31VYzNUtJFFpf6y05uSxZkP6ykWzpNS5k9muWpdMiCppVairW/Ppb85qapEx8mu071IHWK6ryxTzKqFlzuaovu91mVNXIWW3qnN3W2lsVdIHJ7lekIcQhaQUDBylZSpCXAk61jUkAfwyiyglkFQWlREBQsQTsREutFFz0jUyuaiPUC76u3c9CokSrUyDbVSgxf1tEt+hwKzLps676rSm2Y1SrNHNSZeeaQpmI6qMqnMy5UuYqNq3aZ/K6fLk1FEyaN99bbzlU0tZZXUPrYS6iiaeJW0y8GlBKiFKSFBwoQhAIkLS4twoWdYSCAhUSEJCoKim2pOoTFjsCTDBVbMvKrMamMOUm+pLOqs6jVa44lVa0rqFLi1m367Bl0uTQqTN1TYNMhfstSaRaE6mKekImmntXCJMeoLVHBW6+hZXliw9lyDlKHmadTSs3becZqKdxp1FS8jKVB1z4t5+tQ8ANHeGmKFtAKwktOFLoIcIeKFqB7opSpKwQpKS6dMpSlCgVQSNRMkgyOfI1Gbrt63Y7Qa2xWbt09jWUl8aeU+os0t+nR7mchTkSbJ1GrcpFOXWbkE6XDbjSJiItJhxI0l15xc1tohOWfD0NGKqnWxRZkqtUk5k42X0OrpQtvTX5XTpLqWKUttrKko1vOLWkJAbxh16nFwoKW2EAd3qSkp1wTodWdJK5gCQBAMmcRagy/Ig6W2DVL9ahwadHu5i+Hr+ZSVTY3PRHrXh0+harUenMyqq87TnoprFPgTqdR4dQrikocqlSh1CKernXm2YNZc4pxblIugGXLshUVAq1OVGUPO6GUpdSssOLQ4+41TmzTTjStJTZpvvAQErC+8i4GkIAQ8lJKjp30+FJUI1EKwJvjNtan39eseytL9Baxftzxfp40uvWXPuZz9h6NFXFqECoJeh1dNv02rzpX1bdqtTJECLTzMkT5i5CY9QgG29h656honMwzXtDT5dRqSVN09e1SgZg+tK23G9LjJqXWW0BtVYUJcUvQltCWyttwMq5tK1pbQwpxU/M2XP4SRBBMWBJkISYAlRM+ICxrw2aX07RfTimU12FHZva4I0Ks6h1NMuRU5U64nIqEinGqy3ZEqRS7cjqRR6UwHfpUpjyJjLYenPuu0rPM/dzXMnHUOn4JhxxnL2yhDKRTpXqDqmmwhKXahUvOnTqOpCFHS2lIctUoaaAIGtQlwyVeMidIKiZSj5UgWsY3wQYraSQOb29IVuD0yPb3A6DHCKN5SlJBHIk2jcdJFjJ3ttMHCltAA3hUxY7ztYbn1Jt0NsWCeCBlUleolTPMUIFtwELPQqUKrLcSn3KfQVb7FWe/Hr3/0+Uqg12kq1IhJVltOlX8ygKp5Yn/hKT0Ooc4ovaxUGib//AHrjoJbSJ67GCYsecH9x6TxTsc4zGY1jrPTHaxpZfVPZRzuu29NeaR/8nYXJNbAPY88cYPY79uKx2zy9Wadls9oUJCnH8ve7tJMStspeT/8A02n3jD/K3gxmNG6TAS+iTtAUdJ+ysUp1JxyJLeQ7zIUhRGMgJ/i6ZOwONu4UAcYPHzyzrKHKWqeQtCgpC1C0GCFHneSNwQbki98djYdS42kpVNr8cn7W9vpLMqqhSlJKhsQBk5GMZz/c7e2/Tiu/D6CUlJnYT5yYjqfIC83tg2IvcUOkXFT36TXqdArVKkFtT9NqsWPPgPllXmMrdiSm3WVraWOZlfJzI35VAFWUtJep3A+y44y+Jh1lxTaxqEEBSDqg8jYgQeuNEJUCFBKgbkEA+hgiOoB33G2IrKqESgxWoVLjxaXBQAEQoEdiBERgBCcRoiGWB6UgZSjmxsTuRxHVLTzq9binHXFFQUpwlxcyYGtSiogjrEmbXuVshMgAAf8AEAfYRI/v7iH1m4l1ClVKDArUmhz5kR+NFrMBmFJnUuQ6nlbnRI9QZkQX5DCyhbbMxh6Os+hbSkqwXdIwWnGnnadFQ02tC1sOKcbbfSIlt1xopcSg7KKFBQGxHCXCFiASkkGFQCUk2kTIkdIgz1wFDWt9kPXvN01HjjrLl5wanFoUylN0XTWOli4J7rzMKgqqybTFF/X8h2PJaZo7dQXOU5HeQpjmacSL2vs/miMubzg/huynL3Wl1LdQqozdQVTNaS7U9wa34kUqEqQpVQWQyAtJ1XBMaKhkuFkZiO9SoIKdDAAWokBsq0adZggInWSDA3GDjpNwGJTYMOVU36rJiRI0V+pzkR0Tai8w0hp6dLREaYiolSloU++iMwwwh1aksstoCUjn7zKlOvOIYDLanHFoZaKlNtJWokIQVqU4UIHhGoqWUgFRJk4kAIAE6oAEncmLk7c+Q9Bha/XYc9p2FMRHnQ3E4dizW2ZkR0AdHYspDzDgTvy8yFEZOADggAZdQrW3rQ4kSFtqU24kEgeFaSFCeQCPrjfEEApM8A+tjsf++mEVETbNssyY1vUajUKNMkGZLYo9Oh01mVMKeQyX2obTKHXw2AhLiwVJRlKSE5HCn/jataV1D1Q+pCNDa33XHFNoN9KFLUohJJKlAbquTzjQSlM6EJSCZOkAeV4gb9RPth0du1tsf5ozyg7k7gkb5Ge42B3HcY40mnXYaDNoPAFrGJMbE28t8ZhHFvWO5KS156QpSk9SMHqPjJ3G3Yj8eJfL6Z0ODgTuAdhBtI2tHmJBnlC0yLCbRA6Xt5f53mBi5/wKoQ7p7c1RQNpVysR+bb1mJSY7hPQdDL3+c8e7vwTpRT9l31hIBdrYJAgnu2G9+vznzvcY5f2nVNa2m3haMRtBWRb3Sf8AucHFx2TFaxzjMZhmuOP9Xb9ciY5vqaRU4+MZyXYT6Bt9yOx4BUo7ynfR/Oy6nyOpChfyvhbatLiFCxStKgTsIUDf6Y+eDUK5UwKpMZW4AUOrQRzYJIVjGcgbb7EAe5A6+F+2dCpFdUJiIdcNwJgGPS5PFzEgxjsOXrllCrCQJHJkSeePUEk7RjULl8NBePPB2IJKwOnToOvz1/LjmbtKrUq0EEmDuTNh+sGDsIm2JMKBtsehsf36TvjG5e7HLu7kEDOF5x07H3GSd+x2xjgYpFm5TJkWB6WmQZtOw5xgUL2BiRzuJsAIk9ftzjXl2Xo2IjhQ6FcqSpJCgPblAJ6E7gZI+/U8HYypbyx4SEki8EiAbydIkje2qLDywBx7QAYmZtPQAgCBzyD/AIwMFQ1IliRKbcfeYbUVNJU2seagKQUKcb5dkuIWolrmVs4hJB5d+LzR9m2lMtgNoUoDUvVOlRCgoJVyREgi4AJB2xCvV69RvAM+H9DIuPLbrxGKKbk0Ovuz5E60ZVCpTVvmqTZTeqyq1QXo7qp1TjzXLofguMivpuVqLHWmM0eeoRJch4RpaYa1Fz0TTZnQ1/d1jdQ8up7ptBybuKnUlLbLjaaNLqVfDfBqUuXDAacQlOtsuAFNfCXG/ApASiZD6lIIkqB72LOFYE6R88k3AOLGx+kHt+mS2oBUuWw0lDCpIey655bYbDi8kpU46U+Y4cg8yzg4zxyj/wCGqhxpTusNuKJXo0wkSpRIGx8MwnyEdMTxz5sEQjUDGonedgSbydlWEAzfjBN6f+Ke3L1iJkU+egkoBW2paeZGeo2PUHbYbkZAxxRc5/D+uylzu3W1EGyVgESJ3lQ3NusgwbgYk2MwbfSCDBG4gkCbkeVo8zc42szq7BdCUpltqOCAkvBRGDsolS+bIxnGSckH24ry+zj6BdpfEkC5I2EkQDzvfyjDj4lBMAiZgf1/W4FxPrhjrWrkeLFeeErCUpWsYWrHMndWeYnKc5xg8vtgYTwun7PrcWEhEyq15M2t9/ITuTY433w67G4gi0Sbnpba5mRMYq61b8b13UrUGDTbSqS43009sBTJCgspcA8txJBCkE7OJOQtOxIPT0J2T/DDL3ct76uYC3HkCAobf8hfwkW0lMAb8YgqnOe7qO7SQUBQkA7jZQtcxvaJ3OPul/RnVly5/Ctat1PthuTclSmVN9KQQnzhT6THe5cnPIl5txKAf4QAO3HaPw9y7/TOzyafgV1YUmxJQlYaQSQLkhsHj+9K7RrC8zXBlKWmwLzEgrP3Wf8AO+LAuLziBxzjMZjytKVoUhYylaShQ9woFJH4gkfjxo3/AH7fv++Mx8e3iP1aiWlqLeltVGehmfRK/WIchpa+VTYjT32Ukk4wEpQlR7AYJJJ28z9uuzThzGpdQwru1uKKFQYJN9kgWvG3tBjHTssrG1U7IBv3aCqZBBCRyQJEeZgACBgTXNe6WVlSKmw4MnKm3Ukjbpss9BsDsVdx1PHKXOzb5cgNQFbApUCLmQAbGNzEiDxiV+MTFlAwI3knyIHGw39T0jNc8T9vUNAXNqzDSV5DbYcJdWR19IVgDmI5lEZGCNyTw9ouxGYVaoZpwdIBK1JIAjYBRgGYPCrW64A5mTDYGpYBNkoB6wDsDHF/odxiETfE/QKtDWpmpIXzIUVNJe2Kkgq74UoZA5c9SAMbb2Kk7EVrC0B2nIuAbBQAJ/KRAG99oG5gyGLmZMrQVBW0gxJKpgCNxcXtzNpuBRu/xKranviO+Ajm2SlWNudWACTusjGT0IwN8cdLy7sY0llAUgAlJ4m4iVbWMzwI9CMVyor9ThAUdOokTewPJEm0egN9thd1V1dqF201xlqWoLQlZAQpQHONhuFZ26Z5T/IY4teUZC1RPa9AIWRfTA2veOfODIw2cq1rSRNwBHQzPymBePQXPuD7lZqYlfvFrBCyAnKgd1Kx/t6536n3IOOLl8M0AfCADvP6G/8AWPLDUvrJHiMAAcWHFhA6XJt0wS+nGqVRtOmq8mYUOuJSpI5j0zkoPKQdyO+yQMDrgVjNcjp8xd8bIWlJkApJFwJ3uRBiRMiBeTD5qtW0k6VaSYmCJJFtpsCNp3jG/bT8RNYW8kvz3CoOgEl5R9OP4QPV6ASCcJ5snrxVcz7IUhaIQyB4bAJSAYsBwZ2gyRA4w6psyWFwVTMm5k+idN9O88bdLyu//E0mnUlTf1iVuvNA8pWSU5bCVJ5sgr9WVZKUEDGx68V7Kuw3eVHeLRpbQuxjxEAzuAbA9Ta4OJV7NEoSEhQUTHsCN5Nibb9YmDgRLKaOpGoMKpRn/wB05U2DLVnzVNIdeTzuJRkFeNylAUgqUOUqTnPHXKZkUlMimIOoIShBgBJjwyb+GD8xNkwY2xBOrStRqSshCJW5pusJTKlFKRBWrSk6EiNSrEicfoleCvWF/Rrwz2nZ1M0w1JvGm06JWJtpXDTreWItXpkySDSJFbfTMllmVIekQV1IUmK6zS4UgtssTZEB1UgGX5w9RUimFZTVKKFvFn4dlfdqQpZ7orKiVBS1KSpwoQAhC5ShWk6u2Zn+DPZ/Ma/L3sp/Ers2mlqKbLTmZzjNKJFeisdZ77MkUVPRtIpQzShuqpaNqprVLfqqUoeq20vJLZ/aS+IK2tWINuO02iXXAl15FbSRLt6pmlU9+3XExKiidXUMGlxvPqCJsOmsuyPq5L1PmsuMMSIzzSJ3Ls5YzBDJQ1UIU73o8TDndoUyQlYU6EltMr1oQCrUooWCAUkY5125/C3N+w9TmzdZmWR1TGWHLSksZrRitq281QX6VVPlinfjXu7pVU9RVuIa7hluqp3UOusvNOK//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAYHBAUIAgMB/8QAOBAAAQMDAgQDBgQEBwAAAAAAAQACAwQFERIhBhMxQQdRkRQiYXGBwQgkUqEVQqKxFiMzU2Kj4f/EABgBAQADAQAAAAAAAAAAAAAAAAABAgME/8QAHxEBAQACAgMAAwAAAAAAAAAAAAECEQMxEiEiUWGx/9oADAMBAAIRAxEAPwDqlERAREQEREBERAREQEREBERAREQEREBERARY9dWwUVLNPO8NZE0udvvsq8r+OqyXPs0ZgY7Okhmo+pVcspj2mTay0Ve8OcYtpaWVt19plc55dGQNRx3B+q2c3GsLonGmpn6+3NcAPqAomeJ41L0VdU/Flzfc4mukg5JeA5hYBsT5/cqX1HEFthB/MCQjtGC4qZlKWabZFj0VbTVsTZKWZkjXNDtjuAfMdQshWQIiICIiAiIgLBvVJPW0Zipp+S/OcnOD8DhZyIKmkqA4lk/Y7g+YX7zqdww54x5bJXRA10+7m6ZXgt8/eI3WLLC0rmvJk0mErxV0sE4OitkjDurWADI9ViVFBT8top3cuQDBfs4n1SeIDK1M594tJwewWdy33Gkx/bcQxNgj0hz3HGM5aPuvL34HvVbY2+WRn+6itS5wzuVrpZnasZ3VfO66/q3hPynlrqIKO5GaCpkfNKBHjO3Ub+auK0wVFPSBlXNzZM5znOB5LnvhfNRxHa4+uueNn9QXSK6eC2xjyTVERFszEREBERAREQVhdmaLvXt6YnefU5+6wXjK2/ErCy/1wPQua4fVg/8AVqN9JyuTLutcekejukM9OZpTy2c8wAO66tZYB6hY9wBiic6BrWuPU4zlQzj72yx8QtqRHJ/AqueGeodGCeXIw9c/y590nzwt7WX6nkt9TWsy+lgqOSZA4YIyAXDzALv2U3FON0xrvXxRUlRM1+Wwu5b8dQ7IGPnuFiGERZAJJzuT3UTopJ7xxVVCIuNlpqp9SZHZ0uk04xq6EAjICl2WvYHMcHNPQjuq5TXpfG7qSeHERn4wtQ/TNq9AT9l0UqF8IYtfGVM49I45H/04+6vpbcM+WXL2IiLZmIiICIiAiIggHGLC2+yH9UTD/cfZR9rxgNc4a8dM74Uq46a1txpX7Bz4i0fHBz91V/GNurIaiO9Wl0hrIGct0QGprmnO+n4Z7Lmzn00x6ZN0nt8tJLS1NVHpna5nuyYJ7bY7qiLjbqehrrtboKyWooxMWNi5vVzQ3L9LRgkb9dirgNynfSwezQQuEzGlz4W6SCc6jg7gg9sZ3UTouFaW2Dm01JV+0Tx/5z3yanMdqGcHT1xk5SXRrbYUbbbQW1tBHOHwxsGS851A9Dnpg5HTZeXtZG9ojc0A9Gg9R8FrnVJtFJy5miOjaMnn4IbkkkfIfdRmG4uqql15qnfkqPLabQwtD8nbA8gqzG1fykX94KRa+I6qT/bpj+7mhXUqd8AHCpddKnTjEcLd/jk4/sriW/HNYss7uiIi0VEREBERAREQVv4z1cVqoqG6zBzzScxzY2uxrOAMfuVTF08S651wh/g9sFTRywNe3XkPL84I28jthXl4z2ySu4PkmgjEktK4yaHDIcCCCD6hc/251fR3CkdbaNjOH5YdT24y+F2n3nE9Qcj6qlkt9m7OmRxFxXxTS11LFQWeB+toMjsF4LiemQdsfFanjXjI2niCigrKJjmviZJUFsryQScHSAQNsdxuo/ZJqiyy3C62+4CqigBD6Z2oPfk7FzT0wd8r7Wea3cWV89fxFTsiqI2taxwkLY5AM4GD3VbjJ3FplX04q42tV2i9h9kqJqSUgOl2bvnsO+FqWUlxp7rJCxuKJjHCGInLCMbbdz3S7X5kN4jobbbYHticGAvZlxPfT5fNZc1vqTxM6omq42tMbjC3Xu33cdPh5pNYzRd10f8AhwikZwzWvm/1TJG12euQzO/qrdVe+BFqdbPDqhdI4ufVk1GojBLTgNP1AB+qsJaTpWiIikEREBERAREQfOqgjqqeSCdodFI0tcD3BXMvidw5WcMcVR17HPjpzsH4Jjnj7jb+YDqPqunliXS20d1opKS408dRTv6seMj5jyPxUWbHGNwu1osdUa6z0PPfUA815edI/wCOD0+SiPFdVHeq2OphlghhLQ1sB93lfQDHounuI/AK2V8kr7TeKu3iTrG6Jszfl2PqSok78NFWWlh4lpS3OQ40LtQ/7MKJNe0qSrqupdTUoopYo4IYwx9VkAl3cZO/op34T8E/474jEjJJ5qCJrRW1WMMaMbxtP6nDb4Ak+Ssezfhms8U8T77fa+vhYc8iCNtOw/M5c70IKvGw2W3cP2uC3Wajho6KEYZFE3AHx+JPcncqJibZsEMdPBHDCxrIo2hjGNGA0AYAC9oiugREQEREBERAREQEREBERAREQEREBaSR10jnf+VbLEZcAtnwQwnrg9x8+iIos2vhlMb7m2zpo3gNfI6QOI3Y5wcAiIpUf//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAYHAwQFCAIB/8QAOxAAAQMDAgMFBQUGBwAAAAAAAQACAwQFERIhBjFBBxNRYXEUIjKRoQgzgbHhFRYjJHLBQlJiorLR8P/EABkBAQADAQEAAAAAAAAAAAAAAAABAgMEBf/EACQRAQEAAwACAQQCAwAAAAAAAAABAgMRITEEEhMyUUFhcZHR/9oADAMBAAIRAxEAPwD1SiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgItW4XGjt7WOraiOHvDpYHHd5xnAHMnHgsYu1CWhwqGEEZGMomyydbyLmvvlvZ8VQAf6SteTie2McG985xP+VhUWye0O0i5VNfqOeskga/ToGQ840u9FsftWh70R+0x6zvj9VEyl9DdRfEc0cn3cjH/ANLgV9qwIiICIiAiIgLl8Qiq9i/lNfP39HPC6iFBVLquYXttVHSwzRxNLYT3x74ZGHHB2z/7K7kjy4EsBOcZBUTkjjo6ysqHvOoSOAaD8JZnIA8dsrVg4gnqZHx04qGyiMyNa7ADlyT5mOvL6c/dvh1Z/Gu3lx9SPniW9SxX6GhjZNBHpJkqPZjI3UeTc9PVdJokkpw8RnwyfFRSO5XSqnkabm9kgz/Bke9jgfMA4+S2aC7VcMpirHOc/OA4uJDvMZUbM8b25V07fi8xmOHOyf7/AL9f9SiDIIJBDwN8csrKHuz1GPwyuXHXB7A8HI6knZa816hiccDUcYWc2a/VcV159SCCebvNTXkOVgWE1JoAazVrz7urnhVFa7u6e6UkGMd5K1uB5uCu5derOZTwzywuPsREWqoiIgIiICIiCsbzSxNuFdEWDS6V+fx/RciGKmjkxFGBKxunPXHgpHxIwsvdWD1cHfMBcQlz8ktLd+vMrizwly7Y6Mc7znUU4gkt8bqevqajuWCQMDgM6znb06qJX/iiJl6pIqWpLIAdckunLT4BYeMJ30t1bw7UAFs1VHU0c0mzQHE6muI3O+w9VuXHh6hnpjrnjZI14idpwWtk2936qcsOx3/G36pz7n+H3S8QmtbNHJJHTwMcQ3BwXAdfy+ayzv0kNa5xA6k7qv6CMP4vmtTJO8DJXOkLR7ojbh2B4HUACp3N8Z3ysJomGXf5V3bccrzX6STgUOqeMLU07gTtd8t/7L0QqE7JIRLxlSnmI2SP/wBuP7q+126JzF5+69yERFsyEREBERAREQQTjNrm3VzmDLjG0gePRR6V+G77jyUo46afbacgfFGRn0P6qr+KZLnaKqK7QSGelYzu5aTOlu+cOz06ZJ8FzZzy0l8M3Fdkpr7bnxVEMZma0mGR7TmJ3Qgjcb+BVLVVRfKaiullqqqJrY6nV37WFzjKXNdgv6Ak51Y8VatbVUhghe6nlMr2hzC+Rz2guGRuDgjI+igNPww6KV9Tc7ga2aqaZWh8Tg1jnuGc7+m3kmN57TfLt8P2eC0Uha5sTq+Q6qiYbue4nJyTuVnqHYk0+K5lP3RYyGojfPUHSDM0ua5w3058wBufJcqiq6m633vWaoqSiDo3AP1CR3TPnjmqWdvV5eTi7exGHVxBVyEfd0xAPq4f9K6VU/YVBht1mPMCOP8A5FWwunX+LLZ+QiIrqCIiAiIgIiIIrxyAPY3EjJLm/kohM0OY4OALTzBClPaqKqLhGprrfG2Sqo/4rWu3BHI5+efwVKcOdpdHcKllDd4HW6tcdLXE6onnwDuh9VjswtvYvjlxLX0VLE3EcEbWjkANh6DooBxJf6eg4spbS5tQHVGjdkcekajgcxk8t8clzG8a3Wk4guklfUU9VaacvcwwSNI05wwbZOc4+qjF67Qrpd6iAWe3w0szAcvcBK/fwJGwUTVen3IsutpoXZzGz8Bj8lxpXQUpbD3kUQftGzIbn0HVV5dqzi6st0MFXJK7W85EOlryNsatPTmsFZbZ6Y0tRda1pqWQgRsJLntIz16Y8Umr91b6/wBR627DGsdw9XzMIcHVWjI8Wsbt9VZKgvYlZHWHs1s9NKwsmlYamRp5gyHUM+eCFOltjOTjO3t6IiKUCIiAiIgIiIPiaJk0L4pWh8b2lrmnkQeYXlzta7Pf2LV1M3dOdTPJfSzMwA4k/A/zHQ9V6mWvcKKmuNJJS10Ec9PIMOjkbkFB4MdRstFNLPUwuqIKpphDACxzcEHJONjt55XRsd54esdKZIqeqmnn+ISNaXN8s8senNejOJOwuz3KR0lsuVbb3H/AcTMHlg4P1UKk+zhcHVjZP3ko3xg5w+hccjw+NRZMpyk8KKukFTJOL1TVL3iolPdBrCHN8iOWBy81YPYjwDW8dcQi43aKQ2WkeO/nk2E7mn7pvj/qPQeZVs8PfZ7s1NXsq+IrpW3fQQWUrR7PA3y0tJJHlkK56GjpqCkipaKCKnpom6Y4omhrWjwAHJSMzQGtAaAANgB0X6iICIiAiIgIiICIiAiIgIiICIiAiIgLiSOukc7/AOVbLEZcAtnwQwnng9R68kRRZ1fDKY3zOunTRvAa+R0gcRuxzg4BERSo/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAMBAQEBAQAAAAAAAAAAAAUGBwgEAgMB/8QAOBAAAQMDAwIEAgcHBQAAAAAAAQACAwQFEQYSITFRBxNBYRRxCCIjgZGhwRUkQlJyseEWYoKi0f/EABoBAQADAQEBAAAAAAAAAAAAAAABAgMEBQb/xAAkEQEAAgEEAQQDAQAAAAAAAAAAAQIRAxIhMRMEMkFRBSJh8P/aAAwDAQACEQMRAD8A6pREQEREBERAREQEREBERAREQEREBERAREQEXkudyorVSSVVyq4KSmjGXSzSBjWjOOSfchYT4seP8dju8lp0lFT1742OZNVuO6MPc0FpjLTh23OSTx6e6DVdV3u7WusZ8NSwiiIA895zucfTGRj9VVtTa/mfLBQUwkpi+LdLJHzg5I4d6Dj5rn39tx3m00101dfZaysawtEkkvLQCSGBrepHJ6Z5KaM1jQSyT26es3UJPmRiqeI389fLJPHfB6r5/wBZf1FrX8Uzt/3UuHVvqTM7c4dReGkUrqOasqKovM+BHEZdxa0E/WIz1Kuq5Qn8S7RpBkU9DKyuuTSNsMD+vu5wyAMfNSeh/pKmq1O+PVcFLR2OfeYpomPdJAerQ4DO4dRnA7r0Pxs28EVtWYx9/P8AXR6fM05jDpxFC6b1VY9S0MVZY7pS1kEjzG0xvwdwGS3aeQQOcY6KaXoNhERAREQEREBQ2r/jjp+sZapXwVUjCxs7G7nRZB+sB3CmUQca6l0Vr+/1jZrrVi7SRt8uOWSr27R7BwACp0vhpq2l3sdYKqUNBMj4A2QEdcAg8/cF2RVUEUkk8ZGPrHOOPVfhNQv24bI4Hjnqr7IZ+SXEL9I6gila7/T93MjiWsYaZ7QOOp4X4v05e6dxE1nrW1HRuaZznlx6Dou156V+DuOVE11Ex4PmMae3HI9wm2DyOSbfoHVdWPNbZa0txgukYGO6Z4DiF7aTw61JPUMjFtdHt+runmYA33x6rpt7TGOACR6u5K8E0rw44IHyCrMQtFpUfw/8M5LLd4K+43hxlgPmU8dI0NDJemSXDkYwMYGehXUVjiqYaENrCTITkAnO0dljFrc6S5UzXEndKwf9gt3UJERESIiICIiAiIgrNaQy4zgkDkkg/ivOyoZJGHBwIPI5Xn1S58N5cWnAdG0/p+ihJJiWbcBo/wBvCeascSpOlM8wm5Hse07XNd1HByoatbL5uQW+X2xysq1bfJbBcprU174W18jJ6WZri0NLpBva53bgn71aRdPhKeWOaqEnlOAcXuALSRwD7nP9k81SNGUvXSRRROfM9kbWjJLjgBQtxdszgjPuVml2vctdqWp08JHufNVebI8EkNi2AlvscgDtyrI50zocTyF7++VnfWiPhrTSlbdKTxVGpLdCx4e74hm4D05z+i3hc7eFtKTreh448wv+eGldEhTS26Ml67ZwIiK6oiIgIiICIiCna3jxW00neMj8D/lVl/Qq365Z9jSSdnOb+I/wsv1dUXKg+Gr6FzXUdOSaqH1c3jkfLlc2pH7Na9P5qmxUN+oHU9fTslIBMbjnLHdwRyFitwqL7bP25Za6aIslAkkqA0yvGWDGCMdQ0DJHC1aa40dTQx1dUK2Nsw8wRmUt2gnGAW+mT+aoM1gnnulRc7pXieKd8hbTtY7DS0bWg57Dj3UVnHabc9JXSdjFsojVVnkyXOp+0mnB3OOecbj/AICk5yoSmEVNGaeqYKp/LGvbuBDNwAb+J49lGCequeo46SAvhprc7dI4Sbi/sHHuqTGZyvWcRhrnhHHv1jC7+SKR35Y/VbqsW8Fo9+pKl/8AJSu/NzQtpXRo+1lq+4REWrMREQEREBERBVfEszx6Wnno2h1RC4PY0/xHnj71R6epjq6VpcB9dgLmO9MjoQtJ1lQOuemLjSRktkfESwjqCORj8Fg0k1PbK2qrpLlHF8WxrCyVwDRI0YyP/FlqVytWcLELZQwNLYadjI8lwY3hoJ64HQZVL15fKTT8lIJWygT5GIYWHAGMnLvXkcBSLdSR2q20p1FWU0dTJxuactcfb2Vc1fX3KrrKB9ngp6qmLhIZpWtfExo6nvn3CyrSc8rzeMcLDNBA+JpMbDkA5LQCo18cVOwtiY1jck4H91Wrh4h0Lo6plC1808TC5m5uGvI7FeHT2qJq2l33by4ZZZC2ENBbvGPQHt3VJ07Ry0i8dNr+jvLUVtdeKqphMBawRsYTyWl5wT2ztW3rKfo+0RNjud3yTHXVAZESP4Ixjj/kXLVl106YW7ERFZUREQEREBERAXO3jV4dsp62a5Qsk/ZVQ4vf5Yz5Eh9cdiuiV8TRRzROjmY2SN4w5rhkEdiEHDd1r46e3wUFVTGvijbtEpOCB6Y7L5lv1fTUNLSWOkYKQN/qOT1BXTOpfBbTd3mfPRSVdrmdz+7PBZn+lwOPuIVKq/o3+bMXx6rmGf5qIE/k9V2/acsIuk76Z0LrfR09PVuH2r2YO09grNoKzVOvdQQ26ipTJNCwNq67H2VMw9T/AFHnA9Vq9o+jLZIqlst4v90rwDny4mspwfmRuP4ELadMactOl7Wy3WGhio6RpztjHLnernE8uPuTlNqcvRYrVS2Sz0dst8fl0tLGIo2+w9T7nqvciKyoiIgIiICIiAiIgIiICIiAiIgIiIChJHXSOd/7q2WIy4BbPghhPXB9R8+iIomMr0tFZ5jKTpo3gNfI6QOI5Y5wcAiIpUf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUHAwQGAgEI/8QAOBAAAQMDAQQGBwcFAAAAAAAAAQACAwQFESEGEjFRBxMyQXGRFCJCYYGhwSMkM5KxwuEVUmJz8P/EABkBAQADAQEAAAAAAAAAAAAAAAACAwQBBf/EACARAQEAAwABBQEBAAAAAAAAAAABAgMRIQQSIjFRMpH/2gAMAwEAAhEDEQA/AP1SiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIi8PljZ25GN8SAg9osBraUcamEeMgXn+oUecel0+f8AYEGyiwtq6Z3ZqIT4PCyMkY/sOa7wOUHpERAREQEREBERAUVtLWVFDbHTUgb1m8AXEZ3R3lSqEAggjIPclFT1V7rJn/buqnsJ1JfhuOeiwMqoJBNmph63H2bHaZPvJUvWWyMyv3AYyCRlhx3rXFEG9r7QcpWtePmFmvu79rPdj+ICliu9ZK6KKenYQ3eBAac+4YysLrXtcH5jdCBn2i3K6eOaOnziJjCODoo2sPyCG6RN7clT+YKMwl/rKpXdZfjJ/iOtovVI+Nt1kpBHnBc31SfjwWxW3aipJgKisa0nOCwZx444LFcLpRTQOjn657D3SYI+a58VUUROGN4+y1rfou3K4+Ma5OZeco6y3bTyh49Eq55Gf5MJb8131guD7lQddLGGODi3Tg73hVJZas1VzpYAwbskrWesSeJV2Ma1jQ1jQ1o0AAwArtdtnlDOTvh9REViIiIgIiICIiDhKmZjLvWwPcBh5LQdO/8AkLy8gjQhaG2DOrv9Vjg7dd5tC56aeVo9V7gB71ky28tliyauzsqcqNyVgdG5rgdQQc5UVVR8dVVlftFVWy/R2JsjmO9KZJTvLi1picCS0nvwdPeputuMzyS2pHb3Dl/fjs+K5cnZrTlxqaeBpM8sbRn2iFEz18AfpK3CrU3N1zvJtD3l72VMksz9SAxpDmgHxwPgukfxUcrcU8cJVhbBzxVe11rhjdvHrd845NBP0V+KgOhSn63bNsmNIaeR/nhv1Kv9adPnHqvZOXgiIrVYiIgIiICIiCvdvGbl6af74mnyJC5Kddt0iR/eaSQd7HDyP8qoNsKi4Wa4MusLzPb9wRSUxOAHa4dngO7X3LBtx+djThfiwbX7PwXemc7q2CtiG9TzEkFjhqNRrjKqaauvDKKqtMzoWTRVW8JsZc6TfBxkaDU5yrOuFTTNhYcVJnLQY+slcRkjeGd3QjRcHBYJY3vmuVe2plqB1rNHBoLnak/9ou4Xk8mU/E5YLJFaqTekYw10us8oJJcc54lbzxqoinkY+NsdR1klQ7dLpY3EbxwSDrwOBqtOz1lVdru6drnxUdMDEWbwIe7mo2W3tTlknIvnoFp83G6VGOxCyPPi4n9quZVf0Dwbtmuc+PxJ2s/K3P7laC2aZzCM2z+qIiKxAREQEREBERByXSCzNNSP5Pc3zH8Kv6qNsjHMe1rmkahwyCrP20pjPZHvaMmFwk+HA/qqzn4FYfUTmbTq84oKS3UsTA2OBjWtGGjGgHIcguFvd4pqXamG0kSh8u7jdhYWjPAZOp4ce5WNUKDraeJ0wmdFGZmjDXlo3gOQPFUy8+1vO/SEq6SB2cxNGeWn6LVZDHAwMhY1jBwa0YCkqnvWhJocpKnxf3QvB1WxMb8fjTyP+e79F3ahNiLc61bJ2ujkGJI4Gl45Od6x+ZU2vSwnMZGDK9tERFJEREQEREBERB5kY2SNzHgOY4EEHvCqrae0y2mrLCCYHkmJ/McvEK11hrKSCtp3QVUTZYncWuCr2a/fE8M/bVE1B4qIqu9WvdejuGZznW+vkgz7ErOsA+OQf1UFJ0X3OR2DdaNreYgcT5byxXRn+NU3YfqsKga8V1HRjsnLf7xFXVMRFqpX7xc4aTPHBg5jPHyXb2romtsUzZbvW1Nwwc9UAIoz4ganzVi00EVNBHDTxsihjG6xjGhrWjkAOCu1+nsvclezdLOYsiIi1swiIgIiICIiAiIgIiICIiAiIgIiIChJHXSOd/3VssRlwC2fBDCeOD3jx4Ii5Z1PDKY3zOpOmjeA18jpA4jVjnBwCIi6g//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUHAwQIBgEC/8QAOxAAAQMCAwUFBAYLAAAAAAAAAQACAwQRBRIhBhMxUXEHCCJBYSMygaEzkbGywdEUFSRCU2Jyc5LC8P/EABoBAQACAwEAAAAAAAAAAAAAAAADBQECBAb/xAAjEQACAgICAgMAAwAAAAAAAAAAAQIRAwQSIQUTMWGhQUJR/9oADAMBAAIRAxEAPwDqlERAEREAREQBERAEREAREQBERAEREAREQBERAEWGSrp4/fnjaeRcFi/WVJ/HZ8EBtoo2fGqKKaOLeZ5HglrW8dOPFfqPF6WRoc0uynW9rj5ICQRR5xnD2wOmfVRsibcFz/CAeWq0Jdq8P3ZdR7yrNwPZNsLn1dZa8ldX2Z4uron0WtRV1PWQMmgla5rrga63HEdQtlbGAiIgCIiAIiIAtPFqWSrpCyKTI8ag+R9CtxEBSmC43h1JV1MkU+RpuZQ+RxAPOx8+hWeur6CrnbNLjU8Nmht4y1otf/tVUe0zjTYxilM4kBtRI21+TiomOdxYGue49SqyWx1xlEuoaFvnGRbNdXUJqc9PjdQ3IwxAGMO0vc+LPrdacWJbjcww43PHBHctidCHC172vmVSV8wa8kAXXykro3i0rA8+o4LHvpclH9JVov45fiLaqMYNRG+J85cwkOB3QuDz1fxW3hk7Z3jf1k7cnu2yt+wlVI2WncD7O3xWVjmP8LGkN53UMtuN24m68e6pS/C9MKqaGGaWIVjnPqHh5bJKM178dNQrYw6nfTU+SWTeOvfp6LlTZSIVG02D0zGiz6qJp/yC61Vhq5fbC6oqd3B6ZpXYREXUcYREQBERAEREByP2osbT7c41G4WAqnuHxN/xXlgdLtN177tupmR7fYnmuM+7ffqwKt3ENNmmxVRkjc2j1GtK8UX9GCpfvS13APGl1ha1rPdN3LTq3uiq7P0ic7M0+VyOaxOqTla5ujXGwKllidKmMewrfJdokGzNBb4i9uYA9b2Um2pLSGxjVeYwn2tRnkLtywktuDxP2qehlaDZjSTzsuXPi4uvk6cGX2R5fBYvZHC6p2+wZr9S2XeEcsrSfwXVS5o7A4hPtzTyAfRU8sh+rL/sul1YaKrGef8AKO81fQREXYVwREQBERAEREBzb3g4xFtpmt9LTRu+q4/BVBMQX8QFefeMpC/H8MmaNXUpb1s8/mqLq4ZaeoMrW5g42eC29vgq7JSyNHoNWT9MWa9Q1j2mN7tHcCCoIQxyWZvTlzaa+6L8bcF6iryywPZGwBpBHhNlDGjYwuaxjrHzv6LOOfRvlxuUlSNmKYUzBGC1+U5bX1W4yozeHS58gooxSaRaFgHE9FlwunldNv5ARYZW6EX9VBOEWrZ1QyStRSL97tVOXY/iU7h7lKGj0u8fkuhlR3dng9ljk58jDH94q8VYayrGjz2+7zyCIinOMIiIAiIgCIiAprvCRWkwOf8Aus+6VSlW6Pe+McF0L29YZJWbJQ1kLS59FOHut5McMp+eVc1TPc+Xx+XNVW3hbycj0Hjci9SiYa1gveMmygXSPGIFjoyGcc1zy48lPzSMFr8VHzZXOWuN0uzunHk1TPrXsFsgzH1WRskrnWa0jqsQYGNuNCskTs7gATdRNd9E90uzpTu2U5ZspiU54yVmW/8ASxv5lW6vA9h2GPwzs7oN6CH1Tn1JB5OOnyAXvlcYlUEjyO1Llmk/sIiKQgCIiAIiIAiIgMFfSQ19FPSVTBJBMwxvafMEWXKPaVsfW7L4s6KVjn0shJp6gDSQevJw8wutVqYrhtHi1FJR4lTRVNM/3o5BcdfQ+q0nBSJ8Gd4nf8HDEjJDfQlYHRSD90rp7F+w/B6mZz8NxGrogTfI5rZWjpex+ZUNJ2CvfoNoGhvP9E1++uOWPJfUS3hu4a7lRzpKXnTVe/7IdhKva/F2PkjezCYHA1NRawP8jT5uPyVuYH2B4FSVTZsXxCrxJrTfc5RDG7ra7iPiFbmH0VLh1HFSUFPFT00QysiiaGtaPQBSwwP+yINjyCqsfb/0ywRRwQxwwsDIo2hjWjg0AWAC/aIuoqAiIgCIiAIiIAiIgCIiAIiIAiIgCIiAKEkdikc7/wBlbLEZbAtnsQwnjY+Y68ERYas3hJRfask6aN4DXyOkDiNWOcHAIiLJof/Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAMBAQEBAQAAAAAAAAAAAAUGBwQDAgEI/8QANxAAAQMCAwUECAUFAAAAAAAAAQACAwQRBQYhEhMxQVEHYXGRFCJCUoGhscEjJDIz0TViosLh/8QAGwEBAAIDAQEAAAAAAAAAAAAAAAQFAgMGAQf/xAArEQACAgIBAgQEBwAAAAAAAAAAAQIRAwQSBTEhQVFhEyMygRQkkaGxwfD/2gAMAwEAAhEDEQA/AP6pREQBERAEREAREQBERAEREAREQBERAEREAREQBFzS19LEbPnZfoDf6Kt5lzKYIzHhrvWAu59tb+6AVhkyRxx5SMoxcnSLaiplHmyqqYWkQwtOgJdfU24hezcwVZl3bnRDa1aQ35LWtjG+zPXjku5bUUJQYyDHIKkhz2vIu0W0sF1NxaBwvsvt1Autyd9jDsSKLkixGlkNhKAejtF1ggi41C9AREQBERAEREAUfjcNRNSgU2pBu5t7XCkEQGdSVr5Wfl3RtbwJ5+aj5KWqeCWRNkJ5bYN1F4gzc4jUxsJaWyuGmnMrzEsoH7zrd5uuez9QhNuOSL+zLGGu4+MWSD6XFIQC2J+7vctbYW8F8TSYhICPR3gdwsuF1bM1thO63ReQq5CdXlQnt4F4Jy/Y3rDkfi6OinoK6JznwSyQEm9rkAeRXTFJjUTyd9E8c3OdofLVcjJ3W0cbr8dLJxMjgOgK1LY18f0cl9zNwyS+qv0LJT1Muyx09S1p9pt7i/ddXzCKeWnptmc6k3AveyyXDnb6sgZb9UjRf4hbQuh6dtfiItpVXvZW7OL4bQREVkRgiIgCIiAIiIDIsyRbvMGIN4XmJ89fuouRrbAX1U3nxhizLUluge1jv8bfZVhxcSuL3ahlkvdl3gXKCZ+MnidGHtcCxxsCet7fVDY6tKp+O1UmG4m2GQltFUTRzNkIvsODruA8TY/ElTstbE1k8gcd3BJu3utwOl/G19SoWXFVNeZIjLyZIPqRDFJI8jYjBLiNbW1XS2UuH6QFSYa6oqsw1GFxEvpvSBNUOAtYBouw25XA8eCuReLd605YvFSvv4mUXyJfLjDJj+HN5b5p8jdbKsnySwS5koh7u07yaVrC63oUa12/VlRvu8iXsERFdEEIiIAiIgCIiAzXtJYGY5A/lJAPk4qnzAt1GoV77UYvxMPl6h7foVmOKxzxSNraZzjJG3YMZFw4dfmuQ6nH8zKLLrVfykz8xBkNRTyQzuYGPBHrEeeuior4J6I4jQPrJH0gJu1hDdp2yHaXuelwFbjLFuontp4XF4DtpgDhcnU624FRuHYPBSPdVF9RLUShxdvNk7LiePjxUHFP4V3/AJ/0SZrlVEthdPDhtG2nbOx7gA9ztG3vzt081KRsvYucNeGqhaWQUw3TWbyO5tvANLuta/Tn3JAJK7Ew17QykpHXjLGloJ6d/wAFAlDlJybNydJJGkdm7C/Me0eDIXn6D7rVFm/ZczaxKsk92EDzd/xaQu26Kq1Iv1sot9/OYREVsQwiIgCIiAIiICmdp8d8LpZPdmI82n+FmpNhda3n2mdU5bnLRcwubLbuHH5FZE91/guV61jrNy9UXOhK8dHxssuXbLQTqdOKgMw4hLR1lKyKllmbLoS2Rzdb22QBz56qbkeuZ8hF9SqFPjK2rLJRbVI9rjhofFC4BugAHQLj3hQyGyhcXyN9Gp9kjbx4jJ3sb9StCVK7J6R8OXX1EgI9JmLm97QLX87q6r6N0yHDVgn6fycvuO88qCIinkUIiIAiIgCIiA+ZGNkjcx4DmOBBB5grHM3ZflwWtcWtc6jkP4Un+p7x81sq8qqmhq4Hw1MbJYnizmuFwVD3NSO1Di+/kSNfO8Mr8j+fnt5rkl8FrWIdn1LK9zqGqkgB9h7dsDwOhUVJ2bVLj/UIAOu6P8rl8vSdqLpRv7ouMe/h7tmZmwU3lLL1TmLEBFE1zKVhBmmto0dB/ceivdD2ZUbJA6vrZpwPYjaIwfjqVesPoqbD6VlNRQshgZwYwWC36XQskpqWwqS8vNmGx1OCjWLxZ90dNFSUsVPTsDIYmhjGjkAvVEXWJJKkUTdhERegIiIAiIgCIiAIiIAiIgCIiAIiIAoSR2KRzv8AyrZYjLYFs9iGE8bHmPHgiLxqzOElF+Ksk6aN4DXyOkDiNWOcHAIiL0wP/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHgABAAICAwEBAQAAAAAAAAAAAAgJBgcDBAUCCgH/xAA2EAABBAIBAwMCAwYFBQAAAAABAgMEBQYRAAcSIQgTMSJBFDJRFRYjJEJhCVJicYEYMzSR0f/EABwBAQACAwEBAQAAAAAAAAAAAAABBQIDBgQHCP/EADsRAAEDAgUBBgQEBQIHAAAAAAEAAhEDIQQFEjFBUQYTImFxgRSRsfAHMqHBFUJS0eEj8TNDYnKCosL/2gAMAwEAAhEDEQA/AP38cInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwicInCJwi+VKShKlrUlCEgqUpRCUpSBsqUokAADySSAB5PCLE384x1l96OiWuU4wPqVCZXJZUv7tNvo/gqWkEdx7w2knt9zvBSNTq1NpIJMjoCZngEWn+xWrvmSQDMbEbE9AdvfbzsV4qs5mKd7mKj+X2NIcW576kkK8qW2lTTZ2ASAl4IGwVKJGvOcWZMUyWjqQCfTcCORe0dUFWbgCNt7+c9Psydl1hd3Mt1chyQuMnSA3EjtqS02U+UqPeFKcWSrbgcUUK0EhAA0dLsRWc4EEtBsGNE87zz5nYC0SsSSTMxF7GBaeOZmDMz5DbtKyi+abCRBivq2P46w42Sn/U0hQSSfglK0Ab32D77hiKgEFgJvcAib2sNrenWAp73eC3yn9SbgH0tuIBgrtNZdY9q1vUyFJ0CgNzA0rehvuDrShrf3BBA/pOieZtxJuXMtE2PTcQffm226jvTqI0zFxFjFuDP6FczmaJb1qmnL+kHw9EH1aBITt4bA8gKOu7XgeeScS0H8rt73FuntueojzWXe7eB14ja+36ef+Y5YGb1Ml4R5nfVOKTtC5zkdLC1AfUj30OltCx5I9zsSsA9qidJ5kzEU3mJ0nibA+/U8D97KBWZMOOne7oAtwTxzv8APhZilSVpStCgpKgFJUkhSVJUNhSSNggggggkEHY5vW5f3hE4ROEThE4ROEXVnQotlDlV81lMiHMYdjSWFkhLrLyChxBKSlQ7kkjaVBQPlJBAPIIDgQbgiD92UEBwIIkEQQeQVAbO3lYbmd5QwC6YUB9hcUOq73Ex5cWPMQ2XNArDfv8AtoWfrKUpKiVdyzxmZYnFYbF1qNKoO7BaWtLZMFodpn/yIE8Dfk6Rh6QtB6HxHbgESBYbD9ljTeeWLY+hpw68fS44BsfG/qOjrwd/r9/HKo5rmQsAxwA2gi3HiA329eu63tpUgIlw6TMGNuRA/bdc6Oo9qk77ZKQfACVvEfO/nfz48AHx/wAc1HOc0knwNAbZul1iCZkjd19mi0z5LPuWWBm8z4o+VrcmSbEwF32updsrX0SleN/9x7fwPI0k/r8b34J8DxwM8zJ0f6WokEXNRsxc8OJBlogEk3vsE7imdV7CJvO52uRwHf7SVz/v9bPAgNST42Qtx7Xx+mh41vQ1rQJ2Pjm7+L5i6wYNQAcQdZALuJ36HkEcgmBHds6gbbxsPvfkdVxLyq1cG1NAE+CSVq18aJTvY0d7+NfJPM25jmRA1d207x4yOLbjf9uLFYup0gSG6uRP09R7cmPPKenbSctzWrprdBdr3W50mUwhSmy83EiuOpaU6ghxLS3vbS52KSso+lK0k75bZVVxWIxbGV6gdTDXuc0NA1Q2WgG5iTe82O1lodRpEiWmSdwTNhJm8eW03EKcMdhmKwzGjtpaYjtNsMtp32ttNIDbaE7JOkoSEjZJ0PJJ8864CAAOBHyW4AAACwAAA8hsubkqU4ROEThE4ROEThFA3rrH9rqXaOAAfia2mkj/AFERPw2/7g/hdfbeiP7c5HOGxjahv46dM7C3gI99gIvdQNz7fL/eVrqK02oDaR8bO0k63sa2PBPyfA/tysDAf5RJPlMj09N9jspWQxUxWiGyGwpRVrQStSVa+fjSCCP6h9R13fJ5tawARABMgWnTAm9tIgmw5Ngn39/4XssrbQ2EDSyAdqOiSdnXlCUga8bAA+w/XexrYAEknckkAnmSRAng2G15un399fP6r7U4x2kFLetgHSQDs+DonQH38HXydDeuIBtAtsAAfbr9UXmvoa89qQN92j8jf06HgeAP8o/sN+eRoaB+XczO8G83m09OhtCn/Hyv97f5zzooytzqKy4kfQxRXDigAfpUtcFpBHjx+dYHkfPjfLPKKY+Kc4Dai7cTGotG54Pp1EkLV/zB5Ak3PSPpHuebRNDnTLYnCJwicInCJwicInCKE3qIYDGeVz+h/N47D+fnTE6c1vf9u79NfHkb5zGdCMQx1vFSHr4XvH77enmo5O+w4tN7+Z+/TT8dagE9vyU+T+UBPyPOj3KB8jevufOiBUsMOG0Gxnp6+twNp4U7fc/VV1+sf1PxvRtbxsyyuUa/FOq+L5xi+MXrLDk+bj3VjEMakWWCwJDTcCS2KvPEzDUqsZsiNEqsiYqjY99dOlyIJ7tLiZJbUp6R4iNLmA+LgEEOBM7RYDlz/v8AX6/spk4hld1NwfEbzILOE1ZnDMVv7cquqRxtiVaY9GEybJkxVMw5yHbd+WiLYx20VMlaG0QlLbUVp9DYgF0aiGkwbXAlxNpBNrzcGJRQnyD1k2Er1Oz/AEZocW/1Nz/PMYnULTrhdjYt0PHTWLm2V5OuZVQnYddbCyobnHKvH76UxZu291GnLX+yhCdkaX3L6YcA5zwBeC1ga3URMzMzHM7WCcbdJPTf6/2VpDithWwEpJOiklRKTvt+3kgfc/PbtQ865si8ecHYWH6T7+5T76bffv6ra/QJouZncSNbQxjim9/65FnECTvx/Qy58jZ2fIA5b5OCa1Z3ApgHeJLgR8gDzz8tTYLyQIiY3vcSd+b8f5l7zoFtThE4ROEThE4ROEThFDj1Lse1kOKzfI92osI5+AD+HsGHR5JA2PxX+4CvjnNZ6AKuHfwadRs/9r2n/wCk5j0/Wf7LQMd8J++yo+EnZ0dH4Oj2jz5+AdaBI5RggkgSem36QZ/tsoPrH39+60t6i/Tp0k9UvTSx6XdZsabyXFZkuNZxkNzJtXa0t1BS83X3tDc1zzFhVXEASHwzKiu9qkOuMSWX4zzjK9rQH2cedVhxEbbEAGCNo4hTt5/LyHT1P04X5z2rz1lenzLPVV6Rc1bwa0xDI/T5juPYR1fzq+mZVbYP03xGizXF+nKTHw+srJmRLsqmLMbiybuBjMujy4VkzIJs6ZYNy58PqNpANcPEbOAt4QZkON7cN3MggDYOLHpcjY+cR9/JW8+gb0ixOmy1epPrhDcyX1f9Yqo2GcZvc5C3fy6innVtQwziWNM1rMLFqaAipraZFv8Au3CWmcY0duRaWCW1uvS0jUwPLRUfr7sGznMaASTJOohpBcZNiJaNkjkeRJG0/twI8rK0Rxw+2rsATpQB0Qfo1rxoa34H+/zrwd7etwbkW42vb9LbcKCYBPEH1n7+e0hbq9NbiJl3nq0flq2KCvX4Pl6UqxnKHcdb7WksEgA69zXdtJAuMke17sWBvSNKm/1e01Bv/wBJB6GZBmVDWFoa4/ztkHkiSCd+ojjbZS35frJOEThE4ROEThE4ROEUVvU5HCo+Gyu3fbJuoylePCXWILwBJ/Uxzob8+f8Amhz5mqlQMTDqgJ6Atab9bt+UqDuP7/tz9bKrX1Q9RusHS/p7BzbpFi1VmBpb2HMzaqnSkx7BjCWGpLtvMq2nShp+QwtuOh8qV3w46nZqGnUMO9vJvdVY0GmabWAgv1E6ok6oEjwxAN5AE2BWQi8zN46evt6xc2ssFq/Uh076i4GnqXLyrqThuK3KJsiBXzIj+EvNQsdejQ51tCnOxW58qomqlQ5zciM++yUT2WHFpccajx9gqCoA7U9odu1jrNLbw14MkEkcxDjvEAQQYJ9DBFj1H3yqwP8Ap0655p6l+pPqE609Zquy6L5TY5Xj3T3o7jknM5Upiq6XY3bYji1Pnl6MZ/mGlQbO4fyoImyYuTXN4/Lpn502FWup2PLKrWPvaQS4nU4tIABIBgNcGy43tzKj+rxG5HoPMAgT7nc+oVnnSfIIlRVRMLyvJ7j95Yns0ePXmK5DIswnFq++sqvDEP1tpGr21Xle7R2eOrkuVkh+9x6ni2sovCydbalgBIc5xDxDQ5jpi5uGSRw0SANTbmZKT9fv7t84Xk9GfVnk/Wv1M33TfEKq1jdLem+K2tXn9hluPGnyWR1QiWrsaCiGsPJjiusaqOi3jRmInZJjSfxCVx0MCOfCMzpnNaOWtd4qlCrXc0kay2mCdRAgiXG0wIAB6L1jCVfhHYwtIpNqNpAkES49Oo4m15AuLXK+lmC3GZ6jS0Ol42GSVa3T+ZLbrdOhRaQv+pKEOt6TslBUQT50OwyKiyn8e9jnHvsU2o+SCA8UWMLWmBYBrbcdbwvO95eGAgRTZobHTU51/MlxnrbyiWPL9YJwicInCJwicInCJwijd6lmCcXoJWv/AB8g9vet+JNbLTr/AJLf3/TlRnDZw9N3SrpnoHscP1IA9YWLjBbe0mflHtEqtXLLdT0+bAs0obxqJCdE4vpHZbSJsZ1H7MUHu1CoZZ70v9iVF/3PY7VAnfyvNcTiDjK9Osfh8qwNIVa9UE0n42u5hczDh/hLaVOJqPpnU97gwgwr7A4Rj6FNzB3mLr1CxjAC7uqYcGuqECZc6fCHDSAC6yxrpV0u6TN0r7eK4gmio5F1NuVYwzNnuUUS5sGIyJ9lWwH5Thr/ANpoZjqdjwnGq73Y/cmM2e/vscjzGjmuEFdmHdhododSe8vaCGN01GmZ8bCLgDYg3C8mY4GpgKxpVHtfaQ4Ag3JBaRtII23AOwUcfVX6kOlPps6l9GsBvxb0z3VgvFkUHR6hzuDTREZJU42b/Jri0yColtIlXV1Ar2YVZEuLUtNzbdbZZZIcuCANA/K1xILdIlxOomBPiJgTYeHm6r9p8ul9vPfbpzZTouMHw+E0qcaxiofhFTn7ToSqtmwpbYegyJjSIqkxyoNS5Tb0ktOr9h1+OFraeW2qK9VmFpvqVJDAJc9jYLRIBeBy0TJ6QbXCzpU3VXtpsu5xgAmJMSADe7ogee9rqPPTbpfgXTmyfY6QY1W4/GuLqytbR2vbfU/cW9mhTlpdWUh9an5trLADkqZKcJU8FrbabaW22j5zUrnEZ1hsflPjrVq1Sg6t43tFB1Mmpoa4hrO7YW6iTZ4J0eIBdW9hoZacLihFOnTa9rCA062uMEm5dqfqmLkQCbFW/emKAqHgVgtwoU4/ks9PchHZtuPFgttk/qrSiFKJJKt/bxz7jkdN1PBQ4gnvX3AiwDQJub2ued9oA5CZLjeJtMe+3nPzUjuXCJwicInCJwicInCJwijl6qJhqukVpeqjSJTFDa09jJRFbDr6GHJC65TqEEjYbcntFZ2AlHctWkpJ5T59Xbhcsr4pzKlRmHLKr20mh1TSDpJa0kSRqH14WyjRNerTpNcxrnuDWmo7S2YMSYMfKfeAqmnY1j1So30MJdrpIkPFpbi2/ZX7byHWwUNuFWwlKW1qKR2pKyx3f1fLarHdq8qq90H4NxqVGN1lrhLKjSJAJkwBJIHJYSCCejwtVuQ4xhqFuIaGhzw1pEFzS10FwiTfSA49HRJjKOmvT7IsQCFyrhl5HvuLmRmUOyC6yXf4LSCA4pKwpalPrKOwrSgApBUvnkyHs5jMjIe7GsqB1V3xNKm1z9bZIpNaQHOa4F7nVC4ASA0QDKzzrOMLmchmGfTPdgUnu0tLTA1ucLEzpAaQQQJ33W0sg6ZYBnU/Gr3MsJxPJLfCrA22G2uQ0VVb2WK2q2g27bUFhMjyJFNMWlLSPxMNTT6exC+4uNtqR3AeXjxAAFsXG7edid4F9wAZ6LlT6g7cHjcX5ER8l3smv6WDXykzFpIUwpooG1uvLeR7ZjN7KSpbo3pJUBruWsJSCoV+a5jl+CwderjXgUu7dTLYBc91QFncsbI1vfcBoImCXFrQXL24PC4mtWpdyw6g4ODj4Q3SfzE8BtjO5MASSJ09QWUVM938JEVFU93fg4iZf0NpW4hLi3VJa9xyUv6CQgNtAJSyntQn6vmuVZlh6uYvGFw5w7XBxw2HZiG6A1z2Gs+qQw1H4h5IhrS2kA1lJsNbJ6PMKFUUAKr+80gNqVi25cGkt0iYawSR4gXkkuJkwLauhUNUXp1VuqBBnzLSckEa205NcYaUNgEpW3GSpKj8pIPP0NlYIwdMkRqL3f8AtpFvOJ49AIXGtEA3mST7E2/Rbh5YrJOEThE4ROEThE4ROEWNZli9dmuK5Bidsnur8gqZtVJPb3KaRLYU2h9CSQC5GdLchrZ17jSeacTQp4qhWw9UA061N9J4Imz2kTHUTI8wpa4tc1zTDmkOB6EGQfYhUX2syy6aZba4PkC59HdY5YKrJh9tDyJDSCFxZ7S/bSp2DYwlMy4cnSi9EdbHuKU0sD4li8TVynHVMA6rXwj6Lwx7gwPa9oMseCGgljqQbod+YtgF8thX3d/E0RV0Nq6mki5aQ6ILd3AEOExMAgw2CFvakyGDMYbkNzorgeAc/h/SVLISApSu8glPanSCD4B2NjnTUMVSrNbUZVpubU8UshrnEwOpmI/KRYxPQ0j2OaSC1wIsdyBNo2tewvf3XpWl/FEN1KnwgltYSoKIPfr83elSSUJV8pIUlw6HlI5OIxFMMdqqBgIdBlwJcD1aQSL3bs6YvCmk1xePDIETIkQZifWIHM2UY82nzrCYytLgbQ0lxDRkLLSHPcWO91Y3pKuxKUtqOglPd2nS9H5d2noYrNK9HS8U6dIOa0Oe6m15cbvc0EtD9LWgOc0kDVEEwuzympSw1N4ILy4tJ0NDiAAdLRsYuSYmSQSDCyTpLAeyLJ6jGMfSLnLLiY3FQWip6NXRVELlTnynaWYkKMHJkt9RPaGwkELU2Dc9ksvwtHEUcNhg3G5pXcBUqNGqlhqUg1HahZrGtGtztRcXBrbGGry5zXq1KZLm9zhv5WkQalQWbM3MzAbEAEmTEq9GkqY1FT1lNEH8tVwY0FklISpaIzSWvdWASAt1SS6vz+daifJJ5+gadNtKmym38rGta3bZoA45MSTySVyK9TmaJwicInCJwicInCJwicIon+pv0n4r6iqyLNauZuCdRaRlTWPZ1URWpigx3KcFRklQ64wzkFEtxSlojGTDsIDy1vVljF92Q1I5XtN2UwfaKkx7qj8HmFAEYfHUWhzmtue6rUpaK9Ekk6S5r2Ek0ntJcHWOX5g7AucHUmYihU/4lF5Ik2Gum8XZUAETBaRZzXCIqrs/Rn67MMmvQauowDqHBb7jHvMVzePj65DSR9C5VLlrVRIiylgD3GGZVi2hZKRKeH1c+TYnsR25wTjTwjMDj6YLtNbD41mGMcE0cSKRDiJBa1zwP63FXZxeQ1wH95icM8kaqdWh3oG86X0i+ROx0tIEGOBre16N/wCIXEdVGj9Br6c2hekqbynBpDJPzv3TkSQpBP07SU+CVeB55UP7PfiQCGHLMVUaHFwHxWAc0WsAfiAQJNoMyN+B7aQ7Nky/HsEiCTQrggHmNG87/mIG19slx70k/wCIF1JlQ667wjCelFHICEz7jLc1q7R9pHgOrbp8TXcWcleiVNRVrhsuK02ua2nax7qHYz8QMz00cTRweWYd0B9bFYunUcAI1aaWE76s6RJDCWAkDxASV6G5j2ZwE1GVcTjqonTTp0nMaP6fHWFNsAi5DXEA7Eq4T00elzF/TtQuJTayszzq1jttZFm1nGahOSG0qDgrKKqaceZoaJt0BwQ0SJUyW6lL9jOlLbYSx9i7LdlcJ2ZwrmU6r8XjKzQMTjKrQwvDTIp0aQLhQoNMkM1Pe4+Ko9xgN5HNMzqZnX71zG0aTbUqLCSGDlznGC97olziAOGtaLKUfOqVYnCJwicInCJwicInCJwicInCJwi+e1P+VP8A6H/zkQOgttbZF9AAfAA/28clE4ROEThF8qJCSUgFWvpBJSCo+EgqCVFIJ1tQSogbPada5B2tvx68THHVSIJEkgTcgAkDkgEtBMbCRJtI3UIoPqozmuiZEjKuiGdPWkeyvBQ/u3Q2TlQ5VMyPw1Aq0mWTpsC/N96vm2EiHVtpiwJ4djwH1xlId5VnaDFsFcYjKcW6oKlXue4o1DTNMO00dbqh1kvljnllMBjHyGOLTq/RmK/BTs3i6+VOyT8SOzVPBVcJlv8AE/4vmmDbj242pR77NBgsPhGfCinh+7xeGwlKvjnHEYrCllXFU21muZuHpL6gsa6sQccdraTK4Eu+RdpIl49Zmqr38dcTEsUTr1DBq43v2CJsOtZdkfi5L1fNZcYYkRnmkWeXZzQzBlEspYhjqvejxUKndsdRIa8Oqhpptl+tjAXanFjwQC0hcD25/C3N+w+JzanjMyyPFUMsOWlpoZrgxjcXTzVhr4V2Hyx1X42t3eFdh8Ri6jKXcUaeKw9VlWrRrUqjv//Z</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAAGAwEBAAAAAAAAAAAAAAIFBwgJCgQGCwMB/8QANRAAAQQCAgECBQMBBwUBAAAAAgEDBAUABgcRCBIhCQoTFDEVFiJBFyMyUWFxsSRTkZPCw//EABsBAQACAwEBAAAAAAAAAAAAAAADBAECBQYI/8QANhEAAQMDAwIEBAUEAQUAAAAAAQACEQMhMQQSQQVREyJhgRQyQnEGkaGx8AcVI8EzFkNSctH/2gAMAwEAAhEDEQA/AN/jCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMImETCKEjAE9RkID/AJkSCn/lVRMwTH8/+ouMs6GP5lRk/wB5DKf8uJjc3uPzCIk+Ev4lxl/p7SGF/wD0xub/AOQ/MIokmRF/EmP/AO9lf+DXG5vcfmEUSSYy/iQwv+zra/8A1mNze4P2Lc9rnKKNHmS/wutL/s4K/wDC5mR3H5hF9MyiYRMImETCJhEwiYRfhIpCQoSiqiqISfkVVOkJP9U/KZgieSPt/PdFQHYrKZrty7Xyp5zyRhh8JMsWTI2nvUv8gf8Aq+hQMDDsC9KoiL7dqKec1+tfpa7qTgKnla9ryTBa4YI3ZB5Fo7mwt0qTajQ7F4NpuBwIsP5dS796RWhVXnIAKjaGqORa7tG0FS+p6V9JKPSKqF+FFFVF/Oc89Za2dzNsXJIEgDkjeIGb+hspBpCTIEyYFiR9hbPr+i4Ycoa8qkITKqWbZ/TJuFVhOeQ+lVRVuC2+S9J7GvSC2vXrUVUUWD/qLSCSH+JtsW06b6rp/wDWkS6O5wMFwJClPTaoiWls38zmt4wNxbb7STweVMo+/VMkfUH2bYqiKiv0EiJ32nft9ywwvaInv1+Px32nWSD8QaZ4BDXDiH0dQw4mwqBoiJ5HpkTg9PcOB7VGO/YlfR/cYAgpCwy/0qfwh0oSXPfpeybD1F6elRe1Tr3/AD+Uzd3W6QEtY93cMpVXkSJuGknBifa8rX4A2khvq57RJFrTz/pSp3eIwoSnAlsiPSuGdRDBAFOk9foQjdIf6l6AMhT3JETss0/vzR/2K7b3mnEYy3xN2SAYaSDkQCsnQG/mEiPq/Y7YuL5j9lztY2SFs+xNUFdfRY1gkI7VyPEkMDPZgsGIC8UFgweAHHi+khSAFtVQxVDIFDOh07qB1tcUabw0hrqh88vDWx9IebyQJcABzcQoa2n8Fm4tdd22SCBJk/YgAcET2CuNT2RE776T8/5/656dU0wiYRMImETCJhEwitK53jSC2lhYjlakmXQQgZbnPuAhiNhYtPo4LYESNIhNKPXSOudipNk2Kn5Pr+kfVrNfTDSTQa3zEj5Xv7XORYRPpYrpaJ+1t5gPMxGCAbCwkxF5z2x1Ko1WmYNXlrIjr/13JX1lih2DroCiq2poZIiAnpH3QUDofSie2cGn0+g0y6kwu3F0vZdpMDJBm1rRAkEZKtGu82Dy2QBAdkA2B7g8jvPpHe4cCtAR9TaD0iogNioIn8v6CCIiJ0nv10v+WXGaajYFvA8osLmwgQIHe04WjqlTg+t4sfc5wBb3U1Cvq1/gscFVB7RSMlUk7VFJEI+/btO1T3FeukH2zcaTTXBotveTMnHc5F5jHveI1akTuNzgC1oIm37/AO1EcStaUemQAjVQBUVFNUTslREXsiQUX1EqISD+S/ObGhQaQRTa0mwgATH3z+w9758SoQZeSBcz+3v2kT7LiyIsBRJxUaUURfdUH+JD7KqqqdJ/FUVF/KiqKnsqKo0KbpIaDF7ASe5jaPW98H2wKhBvaO2R+v5qZcTFXyNpulhDD6hQSaNyMsdSJx12IpK8jP8AMCVSUUR3oi9Kkide69Xo2nbT1NZwphoFKLNABLnNvAvuIBmREC/dQ6p8saCSSSCQSbWOQRBN8j84VxGekVFMImETCJhEwiYRMIsInxbuf9y8W9j4Y5TpdKt+Q9Wvtb5A0/ZdZppkODObsq9+lvNctGpVlIjV8ZlpJFszNdecNwmDFI7ROCmcPqxDXUSTYtf7FrgSbXw4iPTiFb02HZNxYGDcGCMAxBm+CteKh+PNzlr0u+OtoNB3OvccOdQw3Zex1r1RSO2r7ECLZWkdqfEt7BusAHUnx47cB96PajIcBGq/77mh7mjaQHYAO30zfBjMdxypxUa620XmBggCQBcXsJBaByO0VRovmBvJ/YbSD+j+LGq3GryNtotKet6bkCzjPsX26JOY1etnSrCmRmDIkyq91kfuISAUqPMZcNhkov1dmncRDGGSGCxAO7F5OJm8TH1QtpY2fLNslwtBuSIkE2tHeOCfk/8AM1tUzbcSw4B29djrmJ43Oswtjq9kuoc2O/Ka9E1INJGCrrUd+0EbACKR9s6f1GJBttuPSCnuI2taWguYHkBjS6ALCJJaSRAzAwVtupRdrgSAYabgRMkC0Y9zY8GVNfMJ+T2swpVHyh430V0NPs+xaTc7tqW5RdZjBstTOfOdDZjVETaIbw69XuRmrf8Ab06fMMSj2EmtirLbbew9jWEyGGDFg4FzgL3i4mbAwBtPIWodTkQwumDd0wDwRtdmRm84CoXzL8wB5M7i0Gv6FqWg6O9tURmBBdjW1nt+60UmRKdhhKuBmnR6vVTnVbKRRhYRheuYiqTbIxyjzHYi4u+QFpElxABJbAnAJJEQScDHpqam0ghgg2AJBcCSMxAA5E/MBMYJzVfL3ci8x8obD5X3nLuybFfza+JxM5WN3Vq9NjVze0yt8mvRYMZHHYjKCNIwRm3IlOCJgx9YWQabTrdIY3ZVeDJLg0+0n9bHse55qahzjUh3AkXEXzAAEYE54WzXnYUCYRMImETCJhEwiYRa7nzFBbLX+P3DV/rVnWVys7vu+t3rWwPQY2uWmuXWiu3FjXWkiwIGhdfPWGP04GjbmPSk+lDdafMDTkdWYXMokAkBzg6BJAIBGATEtExbvIVjTmC8TkcwAbOyTiATB/3C04+e+DvHDR9F1rZ9J8gIU/Y9gmS5sXVrTXzmxnrJ1Bb2Wvk1NCqW9WFI28ASWXUVzoY51yy0eR0/Lt1GpOoqUzQcKTY/yHa2dwlpaZ80EXluT6LoupUW0mOFVoc8l2CYNpkAWmZEHHEm9PPD/l+Nwfy5IruZ24UjUuU6eBq8m0bs7fYJ2qW+sbDFvNRvX9QbCbPe2Sts4Lr0apsQpbFxXaKVDdahRpYS+zSrUy0lokNa3dTaBJMiXtJIB2kTGRcgmFUNN1ml0EyAXbnWEwHASQTaCROJFrVV0XwZi8qcwjqHA1xO3vT4nGbux7LzfXxN7lw9T5F3nkOz/YtXyNVP1EiXTbTsNIkOFV6hLlPBf3bh29Rs7X0hcfmbTplrnvqHaJJfBhry6ACIddwgQJLszcFatJG3aPMT5WzMtAJJkm4BkyfljAIK758R2HvNNv2rarbaLJ1HTKRu2sIM2wn61ue7bnvirWJsuw3NRxsk+drE6XX65EctVG1S02FwrLZrt17011PT1a2o09Z+2i525jiHAght/KXB3yw6BEOIyTeFIadWkwBzWw87jEuNgSAY81wTYYiYPFntJpFDyxXXFSzrS7VZVtdcbJQbA5tk6r+8+4hKNpIs4t+1Rua6lBeIxMo63YHn3ZyhGpmWggP/AKjHgY91Jxc0gcfKDbAi5EAA8TyRa4hlRsbbwXNO5wNgB5piPNBAi2AYut0n5ZCqnO+N3OW629W9WW1/yFp+sS0fQDekfsPV5teTz70f/o1kJMnymTajIP0WWY6Pq+6ay5Pf6awMp1SDLXVA4CCIljSZn7j07AYVF5JdJEGAODYEjIsYMi2ABMmSdmrOktUwiYRMImETCJhEwi1/fmUKewl/Dgk3tO1WN2uq848U2bFrasfcx6OPOk3FPKtFaViU2rbJTIwzFdhzG1rTmtlGd9aDlHXgFlLcCR47QYsQCx4zIiTAkEGSPeSnMVIidkiZzuA49CZsbStHLxg1Ks5M5qv76HuWn67uVZqr15XP72Dcul3aXNQ6nbdV1zXBgsBeW0qBLC41y2GVAYoEi/UWulRxAWfPfDeKKlGQ0AOAkgGJiATZu2JJkyIgSrTaoa5j4JIiTY/cbYi4PkjDoCknIsTk9+/kLtHC+2VnJtdCiPbA21J1/S1K6gxpO5a7t9FXcbsyJmrbD+y2277cxlnLnjDjbNHq3G3YBqFinpWU3+GXG7Za1slrBtG5rnfW2AY572stnV94c8gAt+Z4AG7aTDgMtJtuJtE7SbLLD4c+Rmk8OeGXM3jJK2rZuIdm2yw2yFq/NOlca77uGyxuS7mVXbC3F3OzurKordfgQpR0VC5Xa+1cvSNfntTvuWNhr3GW5mtY9lTTVXODWGGkNcXGC0gAiBAJAcADIuMSI/M17arBLiJExAkGYJGZ+V0wMECVimGh5Y5TuhtIFJs9zyjuf6BNfiQtyasr20n2tMc07/VD2Vuvl0qzKtmutfS+jc2ro5raKhvWDBM1zp2NMCA0y2ntgtdYENMYnGZmIkSty95l5ndILmzdsiJY6LxAmMAG91PPIzRNx8fdV43mx2aen5K2Ctg2FjU1NHsky3r5EyIzU3+pbWOyOTmLe7/T48yab7NcEUjn3cYqiJIgk8+p0B4oa82cwu2ABuy0gkXIAnibjiDGj6jvDBa0BzSAXCXB30kX+ogk2HJ7yt4j5biKS/Dtbufu48tq95k3mawUaPNjg31Waw7ObcScIm7KC3l2IS3Wu2SlC8IqJATYdvQMLKT5kk1XAExdogNNsiMKq524giwgWgiMki+bm57ys/2XlqmETCJhEwiYRMImEWH348VM3afC88j5r8R+dG1pnQ9jlxY5+hxyFD3/AF6HNJV/7bMSweedFVRCbaIe077ynr2b9O4A7Tvpw7EHeIvBve3qt2O2uLjgNO60+WLwBz2/S68tWXydd67MrAhRzrpWs3EO1p7avdfr59RaQpSSWZ0J+P8A3rElxRcEl9XuLrwiBsuG0tJmkl29tQl7pJBI805BEYBjk+pHGBU2xIEAWMH1HEwfW1zKuQ0a/wCQvJLm3h/SrzfKnVJvN1ixH2faqClZhXtVpECNbsvbHcRIcSBXTJH6UxfM17poVxcRnTenyWG55k7FVPw1LU1i0g0GCSWgeI+RAMQMOAMc2M3KmpgV30Kc2quOIlrQSCRMw2GktBJ72krMbungf428ZcTbr5GhyhvWx8Pa5aUejwqMear6dyHZbpXXEKqm3V6xVVkjWhk2NtOKfXaBGks7JW0kWw2gGFr2m3E4w1nUa2lNZjKW5tZ7LnZUNPcGgjyFgDb23bnMG6wF+g6jpaFbw97y00wYBDm7rkgkuDxa7jENJi91ic5X82Kmh5G1K28fNWhU9RpMJRhytsgTLsLPZPuUB67nRbqXOi2jo1UOvrmVsIrgkkGK6jAhFbazp6HSV3sL9U4CpO5jA7eGy0AOIFi42zMAC0qnqq7A8Not2tA8xxJk4JJicEkRMx2NLqLyY2ja97s973qbNu9tl3gX7MgnxKtasJL78dyRUxIYxHaW1hR5SO1k+CZq2MRmK6ysdSYWWp0+oC5zKhcHAtcdpLgSOdttpjECDibBQ/Egm4jaQ7aCCAbguDQJBAIvN+Ygr0sPgKQGWvhpcOXrCILO47Nyrs7Io0rQiy/yBdVLIABdL6AZp2wA1QSdEUdIRMyFOro2FmnY12RM/mfQfy02URIcS4YJJHA9gcBZk8tLCYRMImETCJhEwiYRWN/Ev0efyP4CeW+n1kBLSdZ8GbzJi15IqpKfpa39eba9hJUVf0wlRUT1ISIoqioipU1wHwlcmwa0PJE2FN7Xk2vADSbeqkpf8jRAMyADgkggD3Jjt3Xkbcw6lfUF/Nq9jrZVW5KiRryBHfEm3CqrdhZ1LKL0qomEqtfB+K4fbpRjRek6LqtQqUnsFWj/AJAHOpu2g2e2xAkTY2P0mRE2WlRpaQHtLS5ofBiwMkTB5H2m8KncPbG02SNsdzIvINlQ01RFpDoZKtPvTKNiLBiMPTCNHoFe7DZIDGGBE37MtB9MyVN6tJxpuYwNe2q5xqGrMAOEuNp3EHE5FzEQomVIdudua5gGzYQLj74BvJAHMCLHtkPkDct42n6bVpLjTbawKS4Eic5GrYzjvqiA8YI81FQ2oTxRDmm0ksYRGwb6tKWUn6KlQpyW7wAJguuRfAMXOfS2ArbdSaj7tiTczfb+9jcxM4zddT3iGNRfOUFZYQbYIraE/IpLA7OK5KE3gMVfFkE+q1/edNtE4IsuCpuqThANvSEup+K8eHNgCCIbOfWbEY+yh1DpftEENGGnk3MGwk4i4i11MdHhSY9tH+sgg60cV4Yz6OghCao4pL0iJ7Ag9tr/ACdR5URF6VcvNIcyZG0bsQciIj7kSDewJsqXykja/DYJIsZniSZkgk5vAXrdfB/0yZofw0fDmgsITlfNe4eq9lkRXGkZJst1s7Xb2/7tEToCj3TBtEqIptGBl7kqJI3A+yttwPWTmcmc8+nHayyTZlZTCJhEwiYRMImETCLgWtZBuqywp7OM1NrbWDLrbGG+KGxLgT47kWZFeBfYmpEZ51oxX2UTVF9u81e1r2uY4S1zS1w7tcCCPcGFkEtIIsQQQfUGQvLQ+Mz4G7x4peVnIWnyI1iWnWL37j41ny1kPMXHH0x1xmhfrZTn8JDdS2h0VjGFxwqmzhSYZKLSsK9X6dp2aamdO5w8jid2HOB+Rx7mAJdc7hBUOuc+q8VGgw68AGwAAj1AJgCLDuFgttqF+H2hA56xJUNV9KqooS+pD6/HSdIKdIqr0q9/hOl4DSQQRt8rhAgzF4GIi0mZ59ef4j4Ik+v6X7zbvbgBfel12xtXkbiRTI/ZCMUIi/l7KPp/xdkif4kXpfZF90RMqagUqJLXEHaObGcmSBnueMBWaXiVCTJF4NpFuwABJiZIPJJVcKXi6XQu1tvdIsKCk4GXSBr1ur0KGrbYKvbhF7iQL/RD67XOQa3xe+nSncGkty0OdcTuwOIJ4NsyrwZ4O174Dd3IBdgcCbiTxnE85S/ATwBsfO3zJ1Li/jpm1k6Aj9Fab3t7lW5Dja9otU1CPeL+SRKAx1J03qPXRkfTdtr2TAjsoIOEodHR0vB0zWVSHVXEuLQSQ0TAFxHlAG68CwFyq9Q+NVLqYIptgDcILjkn7A3HM5xC9TLWNcp9P1vX9S12C1Wa/q9JVa7RVrCeliupqSBHrKuCyP4FqJBix44Insgtp1llTAQI7WU8wiYRMImETCJhEwiYRMIrNvNbwT8f/PPi/wDs05y1x6Q5WPSLDSt4oHWK7eNBuZDQtPWOt27seS39vNAGmbmjso82ju47TTdhBN6PEkxo6lJtVpBLmmCA9hAc2cwSCIMXBBB7LIMcAjsRIP8APRag/kB8qT5EwdhlzOBuXOEuQ9bM3iijv7+2cbbUSIZEwEyJXUe4a+hfTUW3X41t6HXxJ0IcVohZGnt6nTd5NQyqwfLvLmPFovAc21gIJm5MYWSzSkf8JaSPNEET6TB9ze091QXSvlmviJ65expEvVfHF6C08CvGPO9oauAhfzIWP7NwIek7JB791REXpFXK+ppdR1DYcKFzkPIB5GW3kwM94UlH4ejAG8gG1rgHPIH3MSf1V71R8tZ5Ub/ZVzfInJnjjxxqsae0SR6NN85Fu6+KDYNm/GqxpNLpJk0wFVVZl8yH1FVBIQJUyLT9P1lOT4tKmSACWzUMXxIbIucn7KSpVoPBHhvLZls7ZEc839bxwtoXwb8C+C/AnixvjviGqdl3FqkOXv3I12xDXb9+uYrZi1LtXYbLUauqYCvPt0Gs1oN1VJGdP0DKsJE6xmdilSFJsbnPd9T3mXOP7AdgLBV3O3GYAwAAABA/mVexkq1TCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMImETCJhEwiYRMImETCKElVBVRRFLr+KKqiikvsKKSCSiir12SCSona+leuswcWzx9+JjjusiCRJIE3IAJA5IBLQTGBIk2kZVkUHyo3muibEG1cIb09aR7K8Sh/bdDZOVDlUzI+2oCtJlk6tgr8361fNsJEOrbGLAno7HgPnGIHfKs/EGrYK41HSdW6oKlXwfAo1DTNMO20d7qh3kvljnllMBjHyGOLTu+jNV/RT8N6uv0p3RP6kfhqnoquk6b/c/7v1TRt17dbUo+N1QaLT6Rnwop6fw9XptJSr65x1Gq0pZV1VNtZrmVh4l8gta5Yg647W0m1wJd8F2KpL16zWqr39dcGJYhOvQYWrjfXsAmw61l2R93Jer5rLjDEiM80HT6d1mh1BlEspahjqvijzUKnhsdRIa8Oqhpptl+9jAXbnFjwQC0heB/HP9Ler/AIH1PVqes6l0PVUOmHppaaHVdGNbq6fVWGvpXafpjqvxtbw9K7T6jV1GUvAo09Vp6rKtWjWpVHf/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAEEAgMBAAAAAAAAAAAAAAcGCAkKBAUBAgML/8QANxAAAQQBAwIDBgUCBgMAAAAAAQIDBAUGAAcREiEIEzEJFBUiQVEKFiMyYXGBJENSkbHwQmLR/8QAHQEBAAEEAwEAAAAAAAAAAAAAAAgEBQYHAQIDCf/EADkRAAIBAwMCBQMDAgQFBQAAAAECAwAEEQUSIQYxBxMiQVEIFGEjcYEVkTJCUqEWJGKxwSWD0eHx/9oADAMBAAIRAxEAPwDf40pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKV6OONtIW66tDbaElS3HFJQhCUjkqWtRCUpAHJUogD6nSlRvdbybWY+4pm2z3F47yOy47drHmSEH/AEqjwTKeSr/1KASfQa8zLGP86/wc/wDalUbI8TezbSiljJpU9Q9BX47kMoK/lLia1DZH9Ffb76486P2JP7A/+QK52n8f3Hv/ADXXr8Uu1iT0pdyV1X+lGNT0q4+/S8ppXH88caedHzyf7Hnv2/sf4oQQMkcDgn2B+Ce2fxXzT4ptslKCQ1lYJ+px11I9eO5MocD/AKdciVT2z/auK7+L4hdu5TaHBItmEudRbEmrUyV9J4V0gyCDwexIPHPI9RruCCM+354rruX5/wBj/wDFc0b/AG1aHPJl5KIDnHPE2usmm+OOeS8iK8zx9z5nb7a4LKO5/wBie/7CuQQe379jVaUW4OD5MUIocsoLR1ZATHi2kRUs8+n+EW4iV9D/AJOgdScBgT8e/H/6K5qsddqU0pTSlNKU0pTSlNKVbZ4oNs8v3NwBquw61XCn1Fh8ZdrxYKrm7hqLHWpERbqmZMRa0LT1tNzmFRypRV5jTiUKNBqVm97bGGO4ntnWSKZJLcxCTfE4cKfOR42jbBV0dSGB7ggGqi1nFvMJDFFOCjxmOcOYyJF2lsxssisucqyMrA8cglTgZtcLzSqvpS8g3s3NoES31qi1zETHqtMN19sNtITOqKOZDejAEJ5SYBCkl1xSV8KOupIL2CaaSXqK9kRnlZBdCSAKDgbB9sr2yhFwNyxKOAzDk1mNte2Nxbxx2/TunmRVVXeGUTHAGTIy3Eiz5buF3vgHarYrj3lFa01QItbmOR7gXT6emxtNwN758enZWrgk1lNi7lPAUwlPClJlWynkhRQF+g1SXGoX8A2RO1xkkFzrMMm4sf8ACsDm252g5YvzzlR2qut7a1nlLXUX2UKkeXFbaKVPAy5kuHMzbj3ULFtJw2T2ri4rmufbeVtva1W3m2tnlMmIqFU5NH3Eqpi4EkgtqTIrbu9nuTGnVpU6FKmNFIShhZ/U5HS01HVF82RLNVm3GNZ3mtZXiKk7yqPeNG528DkBcqMMCa9r/TNMuTCk+o3wssCWS0FnMnnAENHl4rRPL7ZIwSSSeecx814kfHYIMdM6t2ENlHlrdckMX+DxYVhDS+6pDT0P4i5JbKYxaacablRJLz6XVIfZAA1V3EnXbTK9tqmiLbYEiwGOxedgFVjHK/3QAaTkDaAyHOCcYqkTS+hgpEtnrm85USD+oqgLHAdQLTkL7FsjncQeK6zNt3PGpm19FexDIa3btkwGoqK7Ht3MdmUciwPU49KVWJVYzOl3uuQwzGcdQlKExz5iVhyyXi+I89+ssWtWdjFtVfKg1GBoj6yzyNFKz5fBAEakqACqsOavFinQdnYvHcade38quz+fdadcrOinKhEmSOIbR33MMsSCQD27lG5fjKqbGFWv7nbTZtJW023LTeR2Y7jEoOAORXWk10Ozlrd6kBL0YoSyFcqClfKLnb6n1zbMBe3/AE/eBQA/61vEzbnCKodZQDKcEEhVUAk5OMGjm0/oudGkg0zXrUOzeWyxTuoUKXZyCpVUwCcFix445Jqe8d3Yy1x6BXZlB29i5O+8mM4rH7S7aQ3YPLZZjsxq+zix5ct5x5w8GG90J/TSOerkZVHqt07RRNcaQXIIlMU07yo/A2CHAUkHPrMqqOPSchqxa40qz2PNbQauIl5T7mK3jV0wSWMvmEqQcBUMYYjDE84rOr4e6DcnHcGMPcua6/ZuWCn6yDJmJsJdTUKiRktQJEwKeUopkpfdbYXJkmK0tLQcSB5SMut1dY/1CSxOeSTgnuMHOOc8ZP71jjbc+kYH7k5/fIHPzgAZ7DFTtr3rrTSlNKU0pTSlNKV6rSFoWhQ5StJQQfQhQ6SD/XnjSlYr7nFa20LyZVexIZcceacbkRmn2ytt5xpSVBxBQpP6ZHzJAPT2AA1ik8QaVwygJuOS4BQZ4Ibgjg8HI74/NUazlSSHZGDEBkbY42sQDkEEcAYI5x8cVDWTbHYA4l6SjEqFEtxvh+SitjoKkISflPQgNJCUkAqCUqASE8kcjVE2mWpJ/wCUgJY5LLCvO4DJGAozxnjAB/vVxXWtRRFVdQvAq425nc4x2wS3b4H/AN5tky/YXD30yVtU7DLj6VAuw5U2E6CpHR1tqjSmwlwJ/Y4kcggKSSe5t9xo1m2QbdRnJwQ6AAnlhsZSGz2OT+9VsHUerpj/AJ+5IU8KzLIDj3YSK2fgr2x8VYjk/hHkQrqVPY3t3fiVTrxWjHZSsBuocdKiQWGLW4wiVdiMvnoAkTZMlJ+b3kuFSjYp+nLFcssl5GTkALNuKg45DSBmzzxkNjA71lNt1xqQUI9pp0rIB+o0U8TNzwSsU6oWAByAFB5zjNUSjZpGNz0yI+4e5014MpY5mZFWR+roJCllVVQVz6HFJV0rW262ekBKek/MbTN0pYSgq95q7BmDMEv3j7YwmYkRth7bdwOOA1XWLr7Um2obDRkxkFjYeYPUMbmM0zrnjJyh59iM13U+jhojGIp2xnBTgkKVZXVvOWt35OCtcicsFHyJ/TKVIHHBB55V72/Tmk2y7UtpJTyA11dXV03wBmaVvT/04x3BBBryk6m1m4Ic3McOBtAtra2t1x+FjhAyc/4gd3GAe+Zs2FrnL3eDa+lQlBkXOf4XWqdS2gyCw5kVahTIeKS75JaC0qHUQQpQB4JAyTS7K1tpYIbWCG3Ek8IKxxqmRvUsTtG48ZySSBwPYmrFqF1czRSSXE80+Ec5kdnwxDchchFwDj0heK27x6f3V/ydbQrEa86UppSmlKaUppSmlKH+f4P+3fSlYxrPOcSi5fnGKPXMKLNxnJ72umNyHPIQypq0luoSp1xKWgfdnGHP3D5VgjnWOTXFkZ7iHz4zLHIRLESMRscNhyQAMAgkk9+T3BNLPY3KBZfIl2S+pCqFgysSFK49RyQRwDk/ziLN3c4xegwvIbKddRfcoNDbXU5NbIbkz3qemr3rOzNe1HcKlvmLHc8rkgLV8nUergcsInURtKq+YrMNrqS0agElMHvjnPuP8IPv5wpMH3iOQmNlBDxuVDMcIHBXvkdvbu2McxGnMcatvhNYbOkRYX1e/a47Xt28ORKuqWFDrpkiygx0r94UzGj2le6/8qiy3LYUpRS528ZwJeMIrqx27ZEO6MKMEckjOQQrcnPPtXpsKYb9RlIwxCMAkhP+Ek53EYySPbPxUXZW3AkSX4B8tUsMe8hgD5y15gZ6wACOkuKQgDjlaiOEk8nVrnSPcI2I8xkEgTHr2bgu8jHbd6RkjniqyMSCPziG8vzGQOOx9JZQSTyQoJyOADyOKs5zTJMLroWO3YsYUyBluR1WLY5OrnG7GNZ3F/IkxIDcV+O4tp1pTkOX577RcSw3FfcIIZWU294yCxCkjA5UcfHPHt24yckVcI95I4IbBYqQQQqjJLD2ABXdnGNwBxmqHtGEo6lrUltKO/UpQSkJIB6VFXQBwPX/AMee3cnVNIyR5LlV9OcsVUDud25iAPyT+Oau1qJJMKitIxcrtQM57jgKoJOPYAEgdxip/wDBGmFc+LLZSsjqalvJy9mxdLSw4223RVNzeBSSnlJW2uChaug8IACirntrpo+q2M+s2NtbzR3E0lxGjukiuqbI57jYCuQ7FYy3oYhVPqJxgXa+0m8h0i7ubqOS3SNDIkboVkZmkht/UCMopMgAzwSMjua2twSQCfUgE/141tisBrzpSmlKaUppSmlKaUrwocpUPuCP9xpStRD2iWe5JtV4w99qKnmPRmLbJ6HJ3owWrynmL3CaKQodAUAnz1yJHWrjgkBXc8nUJ/Gjq/Uej+sNWhspZAl5JaX1xGWJiaH+mxR+Uq7uDMWYOvCkruJzyJReGfTVh1J01ptxdxRs1rFeWsUhH6kciXszCTJUhtgCBe+MkcDmrDqzeTP4CnnYt5aR4ssPNyq3355UGVGfC0OxnYrpcjLjusrWy4z5QQpC1pI4J1GW38dup9FvJJLC/wBQtod5ItkvJDEQSSF8uXfEB8KI+OcHFbbuPDjp3UIVhudPsp5AgHnvbp5wOMFlkUK+7kgEsSe+Ks0wjxQbj7X760GG5ZYzIdRhad0FbZz5rrr3xioyhiBLq6mfdXDDzlpVY7j1IqDDYivqkNTksRJTaTDYEiT1r4xyXfQsHWukRya1PEdLXWdOtpIXuNIupNthdr9uEMkaNeyxORdkI1sxuIHIY7dRy+F9muvvoV4RYwuL77C5lQrFeQxlrm3JkDKssiWkbpui9XmeiRQQu65u28fWTZFFx+XVrsaFeZMuy6q3cfMRfukKmkXSWppCHG2JT9Qixs4C5AaSsRkoV5bqS0rH9V8deoZG6hs9L0qH+taI9va3zQ3hcbvvl00tbRxoxuorfUJ4LecxlSksqsqunIv2n+DWhwLpNxfztJp19HJcWsctuuQxtjdqsjM4WKSS2SSSMMHDohBZSMGxLw87r7jblT8XdmXt9K282Ur7OPhHmSJ8aqsMqtrSYmuvpMFtCK129pMasbKDHTXvdNO9KkyHeh+yajt0/ip4q6v0NY21u2rrJ1DrV3BcT6UXmlXR9Pt7ALexQtBKswhk1U5gublUkuYSY40IgeWSp6S6B0jW53mj0a2TT7K2kjS98mMPqE81yPIeYyI0ZdLIDfFEXSKRVdydyoLqZ+5eTPL6Zb6nOjrT1OrdeSTzz/mOLAJ7cjtx6ccntoePxr6gvTGbpYnUgvIo84sPUSu3zJn9JPBOM4z3yc7Ni8O9ItRiGExkkFSixqB7EHZGq4xyRxwMEcisqnsa5srM/GjiciSVOnFMC3HyJaOkFhkrp42NsugcAAlWQgI55KVAlPB5Ot//AE9dT6l1l4gW8txmK10rStWukto+IxK8UNkJWxy7D7lgpPCggKF5Fam8Z9Gs9A6NnECKJL/UtPtWkOC5USy3ZUEkkAfb+rnnjdW4DqetRDppSmlKaUppSmlKaUppStQ72y9OarxtTp5R0IyXbLbm3UrjjzFxG7igcX37KKUUzLZHIHCUj1HGoG/VHZ7OpoplU5u9FtJARzkxSXMGcZyeEAJHsBkdjUuvAm4MnS8sIG77bVbxMZGR5kVvL85xl84wByT71i7tJ8BmO+6iXHbTFR/iS4+w2iPwnr5kDzAWeUHq/UCFdBB449IIXmn3UksESW88jzswtwsEuZsttBhG0eb6vThN3qGODxUg7WaMD1MoWNsuSy4QADIc5wmBlvUV45zjJq2ndxjFNxcek4ZNv4UOW/IZlxHmHKqfIiSGEmQViDN60utuRUuLc6FR5DTafeWpLDkYLGc9AydT9E6vH1NDol1c2caSW9xHcRX9pBcRysLfAvLcAxyRzFVTcJonc+TJDKkoBatp+na9Zvpk1/Fbu5SSMq1vM8bRgyFhDMSrIUVjIwCsqrvWRGQMMfeKU0zKoGC4hkGaWzkQ3NS3jhdm1Uyvx2rs2baLxKoVrU9NYt40RuLRWFlMWzDakyGVx+mOpiXK7Xb+30C56n6j0Xpu0S6FhfSawY7e9tbzVr21ksZgIdVUKlrJYyzyTarZWkG+eS3icTFpBLBqvS7KXVbfRtKv9WuHiNzbLp++W3nisIJluEHm2Jb9ZLmOJEspp5dsEUkgMZMZV8mVBkFPXVcGgr7GvdarD8GZYD8VEhMuIHG3YzsaOGW0S+ph9S20sMpUpt1SAUoPEJtZ03V76+vNWu7C8ia//wDVHfyLh4ft7koY5o55TI8ttiWJUkeaR1DoJGBbnd1olpBDDa288bLBm0RAybhLEGLxsiBNsmVdiuxc7TtBAr42D5KSkHv3WohXfn68gHnsTx6EckffVNZxNuDlSQuFzg7c+3q7bsjgZycHGauJU7T84PHbjA559ue/bkfIrO9+H+offvEHvRka2+tGPbOwqptwg/oycmzSscBBI4BXGx6QB35I5+gOp0/SBp4Or9S6iyg+Xo8Fsp28g3V+HIz/ANQtR+/96it9SdwU0jQ7QEgz6vPOVyMFbWyKZ+cZufnGR81ti6nnUQKaUppSmlKaUppSmlKaUrVa9vfUKgb77NZI0kt/FtobCtU4nspx6gzKwdPJHB+Rm7ZSe/orgcfWIP1L2avqOhTsoIk0q5hyVzzFeBgBngkeeM9sA59xUpfp9mD6drVsSfRqdtJj2AnttmRx3zB/b2PtrK5k/bYldzcgq3S5U5NJZ/NUadFk2kCM204wJTymIzT8ptqdF8xgvltbMNCn+vhC0qTH3TU07XtOh0m/Ty9R0SKUaDNazw2F1I7rIYUWWZ44JJrWYLKse+Oab9IDeQSN+XdpcaTdyX1n67TUJI/6oJoJ7y3t0DRl2KQK8yLPHmMybGigyzYXg1Qme3D93W3WNxoK4Ueyhz696wx01saUiOmTHQtqNYuGT0fFoMh4tOLiLWlhcqO6G31K456f0iLT73TtYnuxcy2VzbXcdvrJvZIBOY5Csk9oixCT7C4jj3xrJgSLBKjSxDJuepPJd2l9pkVq0UVxb3Fs9zpzWizeX5kYZY7iVpAn3du7+W+1iEMqt5c2ajKrxKgxKus6SrjXEuDKUlxye+axyVKYFTIU7XsqXDSivYkT0ohrcQ2H2nZJs4b7DiB0XvUde1nW7qx1PUbjS4LmJSFtIDexwwyG/hVLqZEu5DdSxWjPcIhOxkgFlPFKkjFqSy6c0vSLe7srOC/uIJWRhcStbPLMi2j7oIz5KraxvPstySA6mZ7uJ1KbKkaBmL7jKamyhxbdiO0tL9lbRosZ2eiqrobrltPWy44TIfW6qOmUYvmvSI77rTSElSm8Hu+nkhkGo2l3eadPcMhistOuLieK0e9vZ4Y7GzWVI1EKBBcPH9wIooXiiLEqpOTW10pjFpcW8N1FCCHuruKKF50tLaFzeThC5DM0jRJIYS8siSSFE5xwtvrTIctyJefXx8gw4buP07MZuyiQ57CnFqds24lihDvuzjbiEIV5fS9JSXUK8ttJV6dY22j9OaL/AMHaQrT/AHV5HquoSzyWlxc20oQKlm81oXTzw6sSA+YoW8txvbij0CK81i9fX9QCxLDA9jaJFHcwRXEe5ma6SK6VHEJUgB9oSV/UhCKBW4J+HZoEu0XihzJ1H6r9ztfi0d7pPCkQq/K7uU2lRA7JVZRVFI5/ckq9QdSe+k2wWDRuqbvbjzLzTLRDgj0xW9zOwyTzgzrj8EcAd4t/UxOf6r03ZjcBHa6lcupOQTLPaxI2P/ZcA++T3wa2WtS6qMFNKU0pTSlNKU0pTSlNKVre/iBKBIi+GrJgBytW6WOOEDuApnD7dsKV9v0nSgH0IWRx35jL9SNqH0/py6IDFJtUtzxk4eK1mXPB4zHgdjnvwc1If6f7kpf9QW+SqtDp0w5AyyS3KYXHO4hhnPG3tznGrzaAuEqV34ABPPCuCAOOCeCO/HABPH06QSIWSMfObPfIbB7ek8D54PI9wexFTRsGGzj07xyBgZyGDZHsCBz/AKjnP5jmY2GgtLSEthBIAQAgcJ54HCABx24AA7AAD+anJkQtIWZmZSSxLE599zZb34Oc/vVwXCYCAKBwAo2qO2MBcDjHHx7Vbc3mFmvdWbiLtBbNQYzsp1m2+N3byPJbrzMTayYDjYqRTTZC1V0JpuQtxt8MBTZUvyWtg3+gWSdDQdQDVNOa4mWKOWxGnabGwaS5a3NnDco33338EKC6ncxhXRnIYACSTDrTXrt+tLjQ30u/S2hMrxX5v7+QMq2q3AvJLZk+x+wuJX+2t41kLLIF3rk+WkpOIZkjh5tp4HglL7bbwPAPqHErBHBPHIPAJ/nWrlkliJaGWaEkcNHI8bcj5Rl4OOwODjntWwWSGVdksaSBuW8xFkB9uS4YZx2PeqjhPk9CiSohIBJ7kgDgAc8/tACQO4HHHpxq0TRHIOwD17mOPUe5POMknk88k80JwDhtvHGWwQBwM88Y9vYe3ArdJ/D7Y57l4RNwMpU2lDmU743rCFJSE+ZGxrEMRq0E8c9XEl2Zyvn5lqV6HnX0D+mi08noG5uSqqbvXrvbtUDdHa2llbKT7lt6vuP+rPzUAPqHuRL1xb2wZmW10W1OWbOGubm7uCB/pAVlAX2GPxjPDqRFaGppSmlKaUppSmlKaUppSsM3tvtqJmc+FKnzmujOSX9ptway6sy2gr93xzJ4UnFrGSsjuhli0lULjyuOlLYK1lKEKI0145aK+q9GG5iTdJpV9DdNgH028yPaytxnOGkiJzwAMnsM7a8GtXTTerRbysAmp2ctugPvPCy3MYHBAYpHMAfk4HetM+2V5bjrS+y2nFAgkcq4J7jgD/jt29e+vn9eQSQ3D7lCBjgDPOR3J5Jx7D5/PcTv0y5SSKNlYHC47Z4bsc45POf37+1R7ZKA6/TuTwOSfvz6ckDg+v07cDj05j5Qfwf37cVeVfPJOQAf498njmqHmqdU4oFRKerlI5V0/XjhI4A9e/bnqJPqe/oybwRtGeMnAB79ieD7YxngADsBVWJchSGO05YYJIBxjIBGDkD4Pc/zwVNvIPJQvgckHpPHHb14HA+n21RyR4zwcf5sdlHHJOexqpDBv59u/wDviuXDkKU4Gwo9J4Kjz2SkcHqJ9AAAT39eO3odeZtDJtJVlUEHJyAR3IHcngg8fweaoL2RApCsN+3JA+ACAPgAgkHtiv0GfZEbSz9oPAHsRV3EN6DeZlU2u6FtGfaLLrZ3Bt5V7ThxCvnC/wAtOUfUFhKgexSCOB9JPB7RZNC8O+nbaZCk9zbSanKpXaQdSme6jBB5yLd4Qd3Pt7Yr5u+LGsJrXX3UFzE4eC2uU02FlIKsumwpaOwI4IM8czKRwQQee9ZLdbNrXVNKU0pTSlNKU0pTSlNKVSuc4VjW4+G5PgWY1jFzi2YUVnjl/WSEgtzKu2iuQ5bQUQS06G3SuO+jh2PIQ1IaUl1pChT3drBfW1xZ3UazW11DJBPE4yskUqlHUjB9icEcg4IINe9rcz2VzBd20jRXFtNHPDIhIZJImDowII7EDI7EZByCRWi746fAXuH4TN0rGgtosy3wS5my5O3WcpYX7jk1J1lbMaS8hKmYuTVbKkR76nWoPNvI+Iw0O1UyNIMDfE/w6vul7+Vo4jPp87ubK6KFklhYn0NgHFzEp2yxkhiV3qDEwNTa8OfEO06isog0kcN9EqLe2xbLRSDAMioSGaByN0co9IU+XIfMUqccl/icxjqX0q/aSeeRz9Bxzzxx9eP7c8g60iJkjdon9LA9uAQO3KcEDGDx2Htityw36sqnfnnjkY47gZ7c8Af+KimfXSW3FAIUOnkevHJHr6c8EDjtx6cf3q0ZWG0YYE8YZc/9wfznP8fFxjvFI5cA8cMQCM888e+fnjkGupKLNxRZSl35uQeAe/bv3Hfv1AEjg9x6DXciNRmWRFB4JZhk/gKCSePxj81w9+owRLn9mLN7duDg/jIz2rKj7LT2dOW+NDeapn5DU2MTYPArmFYbp5UppbEO1RDW3Mb26ppih5UzIsiCURrJuKp38u0T0qynhqS9WMTNt+E3h1c9bavDdXETr03ptzHJqNyVYR3bxkOunW7nHmSzEKLllyLeBiWIdkQ6d8VvEq36Q0eS1s5lfqDUYXSwt9waS1STKtqNwuSUiiBb7dWAM8+Co2I8i7+8CDDrIUSur4rEKBAjR4UKHFaQxFiRIrKI8aLGYbSltmPHYbbZZaQlKG2kJQkAAan4iLGixoqoiKFRFAVVVQFVVAAAVVAUAAYAHFQNd2kdndizuxd2YkszMcszE5JZiSST3JJrl6711ppSmlKaUppSmlKaUppSmlKoTcjbHAN3sSs8F3LxKkzTE7dIE6lvYaJcVTiAoNSo6+USIFhG6iqJZQHo0+G4fMjSWldzQ6jpthq1pLY6law3lpMMSQTKGU47MDwyOuSUdGV0JJVgeaq7G/vdMuor2wuZbS6hOY5oW2uM4yp7h0bADo4ZHHDKRxWD7ef2DO2WTWUy02a3jyfb+NJcU83iuZ1Cc+poillRLEG3Zs6HIm4bfISy1YP2shCf3THAkJMX+qvpc0zU72a/6c6pvdGaYs32Wo2Mes2yliWKx3Kz2d6kYzgLM9wwUY3HGa3rofj3qdnBHb6zolnqWzC/dWc7aZOwAGGkiMVzbM59yiRAnPA4q1M/h3dyJ0oCd4mcFgwS5ytcDbXJJspTZI5CWpOUw2kL4HyqLzgBJ6gsaxW3+lXX94E/W+mpFnG630S7ZwuccJLfqucZPMmM+5Gayg/UPpqJlOmL6RwOFk1a3RM+/qSzkYjv/kPfPcCrodm/w8vhjw+6g3u8W5W4+9KoT7Un8ssph7b4hMUgpUqLZtUMmxyuZDJ5QtljKq1MhsBD6VIKkK2P079NXSmmSRTa5qmp9SNHtDW8iR6ZYTYIP60MDzXTgEYwLyMEHBBBNYfq/j91PdwyQaPp+m6IJAy/c/qajfRg5AMUlyEtUcAnD/Zsy59JUgGs62A7e4PtZiVLge3OJ4/hGG47ETBpMaxiqh01NWxk9yiNBhNNNJW6sqekvrC5MuQtyRKeefcW4qQthp9lpdpBY6daW9lZ20Yit7W1iSGCGMf5Y441VVBPLHG5mJZiWJNaRvL271G6mvb+5nvLu4cyT3NzK800rnuzySFmPwBnCgBVAUACsdVlUtNKU0pTSlOQfQ6UppSmlKaUppSmlKaUppSmlKaUppSmlKaUp/3/AO6Uq1mxlb81N9ZK/IMTJqCXmqGYkmp3IfgTIOKz7TpiWbdFYQnwzZ1KnGZFqUWyIK6huQiLWoeaAcs0lxrEchX7C3mh+62pJFdFJftpCEVzHIpy8ed8h3gbNxVBgCtoWmheFt/ZRyHrXXNI1Nen2uJ7PUOn1u7JtftYvuJ7eLUbSWJls70JJa2CNaSTLctAs9y0bs6zvjNXZtNRbGzmXrMt2I83LpbG3hW8aO+5IStC/eYkOM246y030NLj9DPlvrQ42pxCVi7Rs7IGdPLYr6oywfYSxJG4cEgAAEcYPGTzWuLyK2guporS6N7bRuFhuvIktjOoQZcwSkyRepmBVzuJXccAgV//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHQABAAIDAQEBAQAAAAAAAAAAAAYHAwUIBAECCf/EADoQAAEDAwEFBgMFBwUAAAAAAAEAAgMEBREGEiExQVEHCBMiYXEUgaEykZKxwhYjJEJSwdFTYoKy0//EABkBAQADAQEAAAAAAAAAAAAAAAABAgMEBf/EACERAQEBAAICAgIDAAAAAAAAAAABAgMRITESUQQTFCIy/9oADAMBAAIRAxEAPwDqlERAREQEREBERAREQEREBERAREQEREBERARfC5o4kD5rEaqnGczxDHHzjcnYzIsHxdNtBvxEOTvA2xvX0VdOQCJ4iD/vCrd5nunTMiwiqpyMieLp9sJ8XT/68XX7YUTeb6qeqzIvy2Rj/sva72OV+ldAiIgIiICIiAvBe6CS40DoYaqWmkB22vjPMcj1HUL3olnfgU5SXW4SsDpoKVz+YLcrFcqi7vj2oBTN57mc176OFraiZjgPLK9v3OK3LIIzGMgYXi6z3b5dXj6VhXHUD/GDoadzZePlO/7io1XWi8Shxkhp84wB4Z3fVXSyqt0tPLOZWMijmdTuc/ygPD9jH4sD5r7U0kO/LR7Ksxco8OcKmwXFkZzDEG54AOGfqtdTTVttqA8RMaW5Gcu/ur6u81tpqKrqZHsdFTP8OXY3lrsgbJHXzDd6qP3+x07o3nw259ltL48oQKh7QLrHUhkTIdt7hG0kZwScdV1vpm0PsttFNLWT1kjnbbpJTzIGQ0cm7twXHRtLP2qtUDG4MlfA3d6yNXbYXb+PmSWxlsREXSoIiICIiAiIgpC8aip7bqi60ksUmY6qTeMcztf3Xpi1nQkBvhzZ9gol2mw+F2jXho/mfG/8UbVrIQGjJOSvE578d1rLeka7SdX1Fm1VNFEKiOwXeamqJ3cTDLHIC8x8gXBrc591YU/anaRT1VQYqowQVDad0gaCMkgFw38AXAFRHUMVJW2+opquSJjZWluXFuQeoyqSqqeWgkuFq+NkfRtl2S1pDWucMebHMDmB0W/FM82ZPViLbFh0+rX3jXdXbGePLYG3SS4TuG5zyGtwx2NxaHtB9cein161rSOYWshmz1OFBLBS0VooG0bKiN8jcbZ3A7RGeC8tzlHmyVXeprXU9Qlrc6Tusd37UNLwMhc3auULjkj+V21+ldnriXsUhFX2zaZYBnYlkl/DE8rtocF6HBOsqavYiItkCIiAiIgIiIOd+2Jnhdo1SeHi0sL/AKOb+lVNqy43WzXWnuUD/Ftoj8N0O1gbe/efpv8ARXL28x+Hra3y43SUIB9S2R3+QoG6GKpgMc7GyRkb2uGQV43PqY5rbO41k7iGVlwpmQRbNtaJZGhzXv8A3myXAnIPDGR15KKU9lp6RwmdUTTTVDA9znsB8NxdvyM8eJVqxWyipsCGnjDWjcMZ2R0HQKGX+8R02rYrdtVgEhZnYLAwZ4ADGSOu9Tw81tucIs+2rop4m07aWWD4jc1olA2X43kAn0AWvZcKq5XVjYdqOmpwWyAuztdN/VTquoqeVpc6Jod1AwR8wo7PTQUUbmU0bWN4nA4+6vjlze/HlHSe92+HxO1qh3Z8KmnmJ/47P6l2GuUe6zTmXtHrpiDsxW1/m9TJGMLq5d/B/hGvYiItlRERAREQEREFJd4an/j7NUY3+DMz7nMP+VWNJJho3q5e8JTSfs/brgxuWUtQWyE8Gte3ifTLQqGpLnBI/wAm5p3gHovE/Nl/bW2Z/XtunkZONy1lXS08szKh0Mbp2DDXloJHzWV9WOgx7rz1NSzYzyXHO56S8NY7yOCjNzf9reVua+tjaHfkoneLgxu/d0XZw5tqtXv3SWGXUGopceWGmiYD6ue4n/qF02qA7oNrli0xe7xM0BtdVNjiPVkbd5+95HyV/r1+KdZ6U17ERFoqIiICIiAiIg02s7BBqjS9ys1S8xsrITGJG8WO4tcPYgFcK63obnpLUE9ruLDDVQH7PAObyc082nkV/QNRTX/Z/p3XlA2m1FQiZ0efBqIzsTQ5/pePyOQeiy5OKbvdXzv4+HB0WqJ2bnkn5r7Pqtxbgly6HuXdRtMj3G26nuFOzk2op2S/UFv5LSv7plRteTWEez628/8Aos/4uPo+ag6vUAljOHHKxaattx1dqWhtFtidNVVMgZGwfVx6ADJJ6BdG0PdMpg4Gu1ZM9vMQ0IaT8y8/kri7LuyfTfZyyZ9mimnr5m7MlbVODpS3+kYADW55Ab+ecLTPFnPpHaRaF03TaR0lbLHRnaio4Qwv5yP4ucfdxJW+RFqqIiICIiAiIgIiICIiAiIgIiICIiAtJI66Rzv/AIVssRlwC2fBDCeODzHvwRFFna+NTN8zts6aN4DXyOkDiN7HODgERFKj/9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAIDAQEBAAAAAAAAAAAAAAUGAgMEBwEI/8QANhAAAQMDAwEGAwYGAwAAAAAAAQACAwQFEQYSIUETFDFRYaEicZEyM1KBscEHIyRCYnKC0fD/xAAZAQEAAwEBAAAAAAAAAAAAAAAAAQIDBAX/xAAhEQEAAgMAAQQDAAAAAAAAAAAAAQIDETESEyFBUSIykf/aAAwDAQACEQMRAD8A/VKIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiIgIi+OAc0g+BGCg1PqomuLS7JHkMrUaw5+Fhx6qCuWKOsdFHnZgELnFa4eGfqspyanSPdYzNI92c7R5BZd4lA+yHeqrff3jz+qyFwf/AJfVV9WE6WNtS/rF7rLvXH3bvZVzv0h/F9V871IR4KfVg1KyMq2FwDgWZ6nwXQCCMg5Cq1K4z1UUbvsudg4VniY2ONrGDDQMALStvJDJERWSIiICIiAiIgreom4r2nzYP1Kj2AKU1KMVEDvNpHuotpWFujc0NHktjcAKo6pvTNNyU9fWODKGVxgkkPPZuwS1x45BwQfmFIWKtnrLJQ1VQcSSQtldkjPI6446qBP8eiwcAqVe9VOob4LQeauuELKNh8DvLg92R4beDz6K5NG1jRnIAAz5oOi2DNyg+ZPsVZ1W7MM3Jno1xVkWtOAiIrgiIgIiICIiCC1O3imd/sP0UM0qe1K3NNE7yf8AsqVqOsrqG1SVFspxUzMIJjzg7euPNYX6Oq+2iivtsmoLlF2tNJjLckEEcggjwIXksMt80pqKWyPgiqbbJRPp6SaqmH8qLccOdtGSMuwRgHgc8ZXoVHf6a50Rqm1M9PGPhc0s24cBk4J/9wVS7hbbvc9Xm5S3KKKxxbaeONshMrtoL+SB1JyecEYCrsTP8OtMvc+m1BqEunu5ibHTuc/LY4w3a0ho4yRzkknnovRyeOFTbLK2lp201TK5gYNkJik3bWccH1BOAeuV9h1LJUaogtFGHSCIO73JJEWEYxtI9Cm9dF90+d1ykH4Y8n8yrGq7pln9bVvzyWNGPLkqxLanAREVwREQEREBERBF6iGbfnyeCqZVSntQzwZjLnfsrrqIhtnqHkEhgDjgdAV5+5zrhE9rMtOeCVz5u6WrH2+Wu2W/ZKKeJzInu3Oj3EszjGQOnGeBwo/WF3t2m46Q1J7Jk7nNDW0xm8BkuIyMAcfVSltoqincXOeBzyPRdtfa6G6RxtuFJDUticHsErd213mFljmZj8upvERPsxFFSmGOQMbnAcHs49QQPdRVJbaSirZqihjHbzP3SyEkl7vVWCaSONh3EAAKLhewS5Y0tHQZ8VXLPITSPlb9KMLYqhzvEuA9lPKJ003FE5x/ud+wUsu2n6wzERFYEREBERAREQYTxNnhkikGWPaWn5FeY1IdbK2SlkJY+M4zjxHQr1FQmp9Pw3unGJDBVx/dzNGcehHULLNSbRuvVqz9q1TzNe0ODmnPVbXzANPOFAz6e1PQyFraSOpYDxJBKOfyOCFyTQanYdos9Y7/AIg/oVyTktHayt4b+UjXyueQB091jQ8ytb95M44awc8rihteqq4hjLS6AHgvne1oHvn2V80npcWgdvWStqK4jGWjDI/Rv/ZVceOcl/LX9XtPjXW09b4O7UcUR+00fF8+q6ERekwEREBERAREQEREBERAREQEREBERAXPXvqY4N1HEyWXcPhc7bx15RETWdTtooqurmnfHU0D4A0jD+0Dh4IiKIWvMTPtGn//2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAHAABAAMAAwEBAAAAAAAAAAAAAAUGBwMECAEC/8QAPRAAAQMDAgMEBggDCQAAAAAAAQACAwQFERIhBjFRBxNhcRQiQZGhwQgVJDIzQlKxFkOBI2KCkrLC0dLw/8QAGAEBAQEBAQAAAAAAAAAAAAAAAAIDAQT/xAAhEQEAAgEDBQEBAAAAAAAAAAAAAQIRAzFBEhMhUWEiMv/aAAwDAQACEQMRAD8A9UoiICIiAiIgIiICIiAiIgIiICIiAiIgIiEgDJOAgIujUXe30/41ZA09NYJ+Cjqri6z042qDKekbCU2E+iqcfHlpdPoeJ424zqcz29MDK+y8dWxsgEbKiRn6w0AfErmYkWtFSa/jkMqGihphLBjd0ji0k+AX6PaFbGgCSORrztjU3GemcrouiLoWq6QXCmZK0tje7+WXguC76AiIgIiICIiAofim2z3O291TSNY9rteHZw7Y7bKYRBhLZYnc3lp8SuQMDj6k7B55XyshaKiaMgerI5vuJCjX0bI9ZZkajk7rCbzzC4pEpGppGmN2kwF531NO+fcuFucAPDNuhUNURvGMSPaQc7OK61RWzsGA/Pmo7mOFdvPKwSd44locwRnljOV146SPB7xxcTscDb3KqzXWrZnRJj+ijJKyrledU8hz/eTu/FRpfWjNc6GMMiqRGxpyM7keW613g+muFNb3C5PcdRBja52otGP/AGy812yd81xoaCPU5888bXuz7C4DHxXrIcltp3m0bMr06Z3ERFokREQEREBERBi/ELBT3i5DBw2d5wPPKh++EkJka1w2zpIwVZOMYtHEVe0/meHe9oVbc3QcBeeeVxOEV6dBNBTShwHpIzGDzJxnHuBXSq281UrpJU2TjKCGqBjs0tS6eCQDDWve3TpLvYM5OPFTU16gfRU1XhzaeeQxse4jbmAT4HB+Cma+lxb26NZWQsiErXB7HPEYLfa4u0/uuCWTDiQTyxj2Ks8OyTXW6Okw822lfI+FzgRqc522/J2MlWOYbrloxKqzlYezWnNVxzZWEZxUtef8PrfJerF5t7D6bvuPaV+MiGKWQ/5cf7l6SW+lsy1NxERaIEREBERAREQZdx6zTxJMf1xsd8MfJVGaWLXI3vGamDLhndo8Vee0ePF5gcPzwD4OKx/iu3VdBcHXizmTvZQGVLQwyDSMetp5nljZee0fqV8Oe/8A1ddaKSgnqmgTgAaHet4ELFYaWKSNtBLWySUnpH9kRLkRN1luvTy3HXktavM1TVUk1JTwAwyxubrgIbsW7Y6ZzjwVXj4apLXHLDR0tSY5A3U9zsnkcjly5Dxyei7Wel2fKRjkpKWBtLFM3EOIsOduD4rglc3XpyNR3xnddMSvihbSyxh8MbdOqcDOA3O/7KKscNVW17rnXAtLQYomhpaHD9WCs8ctInhu/wBHyn1X+5VBH4dMGZ6Fzh/1W7rIPo80+mhvNQR96SOMHyBPzWvr0af8sb7iIitIiIgIiICIiCh9pUf2ihk6te34hUeULSO0WlMlrgqGjPcyYd5O2/fCziXkvPqeJa02RtQ0AHAWd1NfW/xw6hNtk9E+8KjXJj7udXPTjO2Fo1QNlE1XJZxOF4ygqxgcCHAEdCMqNlG6lKsc1Gyjck8lxTf+weDuuC5JcbzVT3f0AaPktHVZ7Nba61cEWqnkbplMXevHQvJd81Zl66xiIea24iIqcEREBERAREQcNZTR1dLLTzt1RSNLXDwWPcRWuos1a6CoBMZyY5MbPH/PULZ117hQ01wpnU9bCyaJ3Nrh8R0PiovTqVW2GA1DxhRVU7mtduPZrRzuLqKvqafP5XtEgH7H4qFl7J6mR2PruNrevopJ/wBSwnTv6bRerJagA5Vk7M+EZOJrwyonjP1RSvDppCNpXDcRt6+PQea0O19kFoilbJdqyruOP5ZIijPmG7n3rRaOlgoqWKmo4Y4KeJulkcbQ1rR0ACumlO8ptqcQ5gMDA5IiLdiIiICIiAiIgIiICIiAiIgIiICIiAoSR10jnf8AZWyxGXALZ8EMJ54PtHnyRFyYyulorPmMpOmjeA18jpA4jdjnBwCIi6h//9k=</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAB4AHgDASIAAhEBAxEB/8QAGwABAAMAAwEAAAAAAAAAAAAAAAUGBwMECAL/xAA3EAABAwMCAwYEBAUFAAAAAAABAAIDBAUREjEGEyEHMkFhgZEjUXHBFCIkoTNCUrHRU4LC4fD/xAAYAQEBAQEBAAAAAAAAAAAAAAAAAgEDBP/EACARAQACAQQDAQEAAAAAAAAAAAABAhEDEjFBEyEyUUL/2gAMAwEAAhEDEQA/APVKIiAiIgIiICIiAiIgIiICIiAiIgIiICIiAiEgDJOAou+XJlJaqqWGaPnNYdIDgTnbZBKIsfnvN0c5r31dQQO6eYRhcTr3XvdqNXUl42PNK3CdzZUVS4d4vo5rc1twqNNVGDq1N73y28VxVPGMj6tkdDBGIi7TrndjPtsEiMm6FyRQbeKLc6riga97jI4NEgb+QE+ZU4swoREQEREBERAUPxU+4R2sutYeZtQ1aBl2nrt+ymEQYxJUS1eTUVM75PHW4lfVPSRtBfnXJ5DYLr3CnDK+qawkaZnt6eTiuo/mxjpK4eqjzY5hPjz2lqmBj4fi62kbEjb08V0HQM1YYDkDeR4H9l0JqqqAxzcjzCjpq6oB7zfZJ169w2NG3Up51Kwva9srWuG/UBfcoblpFRpO5wcqoz3Odu2n2UbPdakk/EIPks89eobGjbuWhGtYxow8OcDkEnYrU+EHXB9p1XTmcwvOjmDDtOBv++685WOaSsulFA5zncyeNuCfm4L1Qqrqb+mzTYIiKmCIiAiIgIiIMfv7OXfrk3b9Q8+/X7qKnaHMIyrBxmzl8TV3gHaHD1YPuCoCTZee0e2xLozOa9uWkEHqCDuoypaOqqbr3JQcRU/DpdplhqwY3no18BYSAT4kZxjxwFZampjO0rDlxYPzDvAdR9d1k1VEo+sLW9XEAbdVGT7qvU13ddbqy0lxL6eeSaof1Iw1+WNB9R7YVjmCya4XE5TfZ7DzuM7Mzf8AVMcfTr9l6iXnDsgh53HlvyOkYkf7MP8Alej120+EX5ERF0QIiICIiAiIgzPtFZy+IGOH88DCfQuCq8mOo2V07Tof1NFMB1cxzD6EH7rIOJrhcbTcIa9zXTWtzOW6BvR7ZOuD69FytHscfGnDcN2hFVCxrbrTgOppw7SWkHIBPy+uVlBuV5NudaXNgiqqas1Mlz+d8mvu57oOXbnwWlXS6QU7WtdLXOqNPwxLIWt1adQDgP8A26otHYKtrnzXSuinmnAmjDHOAy92dROPn1Hy+iR65Fi4bscFnov4bPxkgzPJkuLjvuV3ZlFUszHxBlTJL+Lfpc6SF5wTjIIB2JHUhR9Bcau7Xsug1xUVM0slY7B1v8Nvdc5jM5day2XsMg5nF0sn+lSvPuWhb2sW7AYc3K7T47sLGZ+rifstpXbT+UW5ERFaRERAREQEREFN7SYyaagkHdbI5p9R/wBLPa2nhqoHw1EbJYnjDmPGQfRanx1TGosMj2jJheJPTY/sVmT9lx1OWwgHWWiiYxrYstYA1gc4nSBsB5Km3W6UFJxLFaHOaJZC3A/DZA1bNLtW5+i0WfxUDXWyilrmVslLC6rjGGTFgLmjyKjd+qiELVW+AuJazR0wNBIXRipIKOLlU0TI2Drhoxk/M+anKobqLmByozl0iMNh7AYcW67zY700bM/RpP3Wrqi9jNudQ8FxSyNw6rldP/t6Nb+zc+qvS9VPmHG3IiIqYIiICIiAiIg+ZGNkjcx4DmOBBB8QVk3FFnlstYRhzqR5+FJ/xPmFra4qumhq6d8FTEyWJ4w5rhkFTeu6GxOGDzPGFHVLgVqlz7O6WZznUNbLT5/ke0SNH9ioKbsxuLyQ26UgHzMDv8rzzp2/HWLVZlUnfK7/AAZwzUcU3htPE1zaKIg1U42a3+kH+o+A9Vo9v7JaXmh93udRUtG8ULRC0+ROS72IWh2q20dpoo6S3U8dNTM7scYwPr5nzKqmlP8ATLXjpz08MdPBHDAwMijaGMaNmgDAC5ERehyEREBERAREQEREBERAREQEREBERAUJI66Rzv8A0rZYjLgFs+CGE74PiPrsiLJjK6Wis+4yk6aN4DXyOkDiOrHODgERFqH/2Q==</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/2wBDAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/2wBDAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQH/wAARCAB4AHgDAREAAhEBAxEB/8QAHwABAAAGAwEBAAAAAAAAAAAAAAQGBwgJCgECCwUD/8QAORAAAQQBAwMCAwYEBAcAAAAAAQIDBAUGAAcRCBIhEzEJIkEKFFFhcZEVFjKhIySBwTNCYmOi0fD/xAAcAQEAAgMBAQEAAAAAAAAAAAAABQcDBAYBAgj/xAA8EQABAwMDAQUGBAMHBQAAAAABAgMRAAQhBRIxQQYTIlFhBxRxgaHwMlKRsRcz0RUjQmKCwfFDcoOS4f/aAAwDAQACEQMRAD8A3+NKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlcEge/Pnx4SpX79oPH6nxpSuFLQgdy1JQPxUQkf+XGlKgXrarjnh+xgMn/uzIzf9lupP10ryR5j9RUIMlx5RKRe0xUPcC1gEj9QJHI/10pI8x+ork5JjwPBvKcHz4NpAB8Dk+DI+g8n8BpXsjzqFOY4kElZyfHgge6zeVQSPxJUZfAA+vnSvCQOSB8agTuLgIPBzbEAeeODk9EDz7ccGw5558aUkeY/WoxjNMQlKCY2UY5IUrjtDF7UvFXJAAAbmKJ5JAHA8k/nryR5ivamNt1t5CXGlocbV5SttaVoUAeOQpBUk+Rx4J8+Ne0rvpSmlKaUppSmlKaUq0HrO6YX+qDbBON1e5OYbaZNi7tvkeKWeOSWzSWGQminQK6DnFMpkv3uMpkPNvyIVfOqbJDqEvQrJh0cKxuJCkmQSRJSJySBwIiZ9Z8+leKTuG2SmSMjBEEHnMVrHYrszieS4+m8vOpLeCK2UtMypldD2Tv6iNKWUNucQMhwBd6w0HkPJYS+9JW2wUpkOrdJWasd9otoFuTauoAUUgKD0ApJEnY6CeCcZOD8ewR2Fvk7drja1LQFEJWDIHChuaCCDPUkDriK/K02R25b9RVV1W5zMITwBcbU7DONoISAE+s1gUgyApQPcVRmvSCipAWU8K1F+0jT2wD7rdlX5kC527o4STcCYPUJicTjOy12D1JZgrZGT4XVpKoxnwMwBGBkkQa/Si2bwRh1L8vqcto8gJSUP1+zewUpTRCT6iFJl7c1/rB5Xy8pejqZ4C+HyO0YP4lWKz4rO9gSNxNwfWdvvSCSJMnMDzBrMrsHqIBANuSD0UkznoS0SQcdPTGaq0xjG0ldBAtup7daze7SFGs236falJIP9DTDuA2baEFHLZU594IPzJCR8o+HPaRpKIi3vCYUdoaf8UcAKN4APTmfMV632B1lwkD3YCQAStJIBGSQGAPPG4YHyqVf5R2QeC4q+o/eGLWuFL/pVeN9Pbb63UJBQHY8bZSFFJ7yVJSmSvtI7CrhXcnD/E/Sd3isn5HJJdUrjEj3oRj1zEzxOYezzVu7UJZwDP4kGJwCO7zBH9YE1JV5hvSxTsGTc9SXUFKCpR9SIpnp4p3+w+SlyIjZ6c420So/MiW6tRBPclPB0V7StMUNzdk6uYSEBt0knnJ95gJ4Eyc8wTNep9nmsyQpTIEFXeFZCR5JALc7ozkfCeKobuTL6UBUSqbbPdzc+0zia4IdD/NFttg7WOWchJaiGXFr9qa1D0FDqkOuxjIZdfU2GUPJKgo/P8QWFEbNPfTvWhISpoAHeoAQtTyoPiAByTBImM7afZ9qSf5t1bpQltSioOElCUoKiNqU7iRGZgzAJFbfPR30qYp0i7TNbd4xk+Y5jJt7CNlWVZDmNu5PfssslUFNVXEqlq0pRX4pQSXapMmvxepR9xqy86EvSXnXn3LstmEW7exG6FK3qK1lStykpBz5AAR1+lVk44XVbiEjAACQAIHGBiepPUk1ddrYrHTSlNKU0pTSlNKV1VxwQQCCQkg+xCiEn+x0/r8fT/n0pWiDdNT8cy7PMYafkMMVmbZhUOxw4UISavKbavSC3yQOBGQQFDnj8ONfm6/tGxeXCVISFN3NwiDIna8tMgc5AkHByMdKu+yu3VWtuveqF27JA3SAnYFAccZ+XrUREgOuJPc67xwV8KWs88H5jx4A5/A8Dz49xxrKbRG3agjGBx+vIP3xWfv3eri4JzB+nwz8K+XHlVdiblEG4jPOUFm/S3KWpBCay1jx4st6DLWv00NPtR50J1aVK7QiS0rvJVxr5VbNpCStoALSFoJEyglSQoZJyUq4zjiRX2m8XkB0gIO1RUQIUIO0yOYIJ86h5zcxlPyvOeB54V49j9CT+nkADj2451rKtLdeO7SI46TjoRz0PmRGR1kGdSfbIlW4RySB0MZg/fyik2WbgjFa22tZtnHgw6WM/LtJTiwpNfFYaVKdekJYS4tsJjAugKbLimuC2lXcnnWTobLzqEpSVKWpKUAI27ishAAnGVYOeQeoIrMvtAttCyFoG1JkkiBGSIIBJHBjkicTNWyZ7a2F645JkTX1ofR6rawtaApLiAtBHJT4UkhQ5A8EAgHk6k7awt7aEobThWZAMkHM4kGZmDUZdas+9BU4TBgbFCY/zDAI554PAq1WPX2EveDZuliyZKnch3k2px/sQ4vudRebiY1VOp45JKVNSnO5PH9HcPm5JM/p1oxdXdqwtpBSq5txAT5OoI8zzknmI5ggxzupu29vdOocclNtcHKgMllacfMzHoDMjPq3oPKfbgBS0gfgErUkcflwPH5avz688+tUpXfSlNKU0pTSlNKU0pXB9vP04P7Hn/bSlaRnUbT/AMvdUvUfRFPY1X75bmNx0Adv+Vl5VYWMVfHI8ORpjSx9OD49/P5+11HdavqLcZTe3BHGNzhWIIAjCo448+TcGkrK9M09eATasjH+VIT5n8tfFqWApsBSfm8/Q+30/MkgcgePp4A1DlQA+/X+lSISVGB9eOn9awt/EE3WyfplzjcLH2GZMnbXq1wVaFTZEdCa7b7dmqmY5i9vk65TQNhOrpmDxodnZ4/GW3JM2G3PhBwvyXGu27OWLOqMMumE3WjXAXAJ33Fm6HXG2U/4EKRcKUEuknDhSrEA8vrNyuwecSP5V80QBJ2ouUqQlx4wZ/lQpSBlW0ERJjI/ab1bb02PZXMssriSY+29Hh1lnFrFhyXoVTFy6FHlU1jKVHbeaZbnQnWrqUyHXXKmnlx7CwLcR1p9fJe4XbjzSW2FBV04+i3QSAXO4UUuBPE7VDu0nG9aSEAqBroUXrCWlqW6IYS2p1RztDglJJGDKfF4ZhEFQEicMu7O6t5lXVtuV0qYxKXPrN2tzcEvczySlaaUuhwKo25rmswxF5h8upcXKaqapEm+iOMNx4Vq8y0DOUAvtLSxZt9BtNafSAuytLhu2aWDDty5dKLL5VIwC45taI8RQFEJTmuZfuXHtTfsUL3IfuGlrUkJBDYaAcbGD4SkICnANwnkkTWQLL4LTEdaEoSlCEBCUe4QltASlKTyeQlPAHI9h7+eNcQlRKjPSTImZn4kdfOPLgV03cp2BIwRkHEkxEEx+HrjNUc6fKFGU9cnRfixSlxF91adP1ctKgVD0lbp40+6rgjkpbbYW6ocn5G1HwNdR2cb7zU7LBJ94ZxAIIBkkz0xJP7mojVVd1p9+SYItnUiJ5IgcZgk/pXqGpHA4/NR/dRP++rrqrK50pTSlNKU0pTSlNKV1X/Qvj37VcfsdKVpq9eVYaPrn6kIKkhAl5vXXiEkcfLfYdjNn3+R59Rx51znnyVH2PjVEdq0bNe1AfmfSv8A92GlH4ZJ/brVsdnld5o9iZ4Q43P/AGPOJjMeQ/2JqllIEkAcg9yU8nyePAIHke6SOBz9eT48a5pZwB15/f75qfAAED7+NU83n2YwnejC77Cs5xigyapt4s0MM3dVGt2q+w+7pjV1gwh9tuQ1JipQX0OsSo6/VUtKnko5VrctL52yebuGHXGnEEZbWpsqBMqQYO0iYnBwAQDAjUuLRFy2tpxCFIVu/EEmDEBWQSCEyAARk89TrPZjXb9dO991A9OFpuG3MwW/xyBLzGwoaCzymaa17BH4mNx6+ZkLwfp40nHquDjFzFcsJ71VXCF9yccjMpli0rd3TdWa03UkWgRcoeKGEOuBkbk3KS8pXdAJWkOqU80opAUoeLJKar99u5sHLqzU8SyUgrUkBRgteAArMpISAlRBMeREkZQekTpxqNmtvxfZPJxfId1M1ZhZJk+WQGFyrYV13CjP19a9eTgq6sY/poS63InqjolPBbbLKkRkJTwvaDV06ldqQ137NowpTTFuskNhTalJWsNp/uwoqEko/CCJgqNdXpNibRhLhDa33UJUtwfjhScAqMKIKYPiJJJIAAFVFzxaUtv+3HCinyQQB48/UA8eB9Tz551At5PPTMRHT96lnTCZ3FGTtMSVGDCenlzGI4qXfh91qsj+KV0H1KW+8NdReOXq0eSEpxaiybKQ6fc/4a6VtQ+gVwSfbXZ9k0FWp2piQFgkkxw2oz04OcdRwa57W1FOl3ipMqQlJPnvcSCD8ZNel6g9yEK/FKT+4B1cdVnXbSlNKU0pTSlNKU0pTSlakXxTqkV3XnuPKSnsVf4ZtZeAccBaTiyaArCR7lTlAsFXjlSF+SRzqlO2w26++R/1Le1WevDQQDnp4IwB8OTVpdlFb9IaBIhp59IHUSvfn08R5/4wwdUW+O9fT/mG1OeUlC1c7AsF6Ju2qBEhTLuNKlz0Mw1o+8uMvx2016g5VqhugzLdK4Ult5DjYRG6TYWWotXVst3utQMKs95WG1JCZUPBMncD3gUPC2dySIJqR1G7urNTLzbYXajFxEbwSoRskflkDkFUDriWL/d7ZzJcXqcuz6BvKtzNma/Mo2HZhkl/ikDGo+WWZo4dQgVDkaXJqv4q9/C0PtR5TDjYZQ04pEVppBNleNPOW9uu0IYK2VPMoaWVFpJcKpckBwhO8iUqmeTM/CrlhxCHHg6EugOBDhVgElIgJmRJzt6YIiAMYTvTxPvM2ud9t2t067KWc8mbjWFJhUWgzExKGzxFAxSpiT3pCm24calqUpoKmO4IjmRV0SQlqShTag71R1bumEabY2Src2ybUOXHfshbiHh3q1NAJJJW4EuqPCFlJgQQOeTpynH13dy8HA/3xCEtLGxSSEJyowEtp8ABSNyUqAnmq8YZeYTjFQ/hm4TBze1DM/H6XNsOs7yBaRMNh5i1jtBQvxLR9KHkwMjC4OFrcsJNrKxiRV9608vqchLpu5uFi4tVe7pBDjlu/wB2ptT/AHKnXXABKtq2khT0NhHehRE4IkbdbLALL8OqMpbcQVIUlBVCUkHmFA7BOG9oJESaP5Xv/n+bbz4bs9tcMqYh7f289ncmyzOPElzMhxeucjx129pMaZT6LjxXIiNIIjTVWaWA2lZcJb3WtIsrTSrnUL0W6l3bSTZJtgpCWbhQUru0pJJIBBUoZSERkAAVr+/v3F+xa2ocAacUHy5B3NzBJJ3ZXkJk7sAZGRlj+DnRHJ/jAdJMdxPeimk7v5StSkAhr+AbK588ytRAHzGQ8y2k8eHHU+wOtnseCrU2YAMIcJjpDah18iQOnQgV52iO3S7gcbnWEx/5Jg4PlHTPWvRkSOAB+AA/Ycatiq4rnSlNKU0pTSlNKU0pTSlatnxkqdFV1kYXbAADI9isYdcXwQFLpczzSuCSrgAqQh5B+pCVp44CuNVD2+Rt1VhcCHbBsJiJBbfdCpxnBA68Z6VZHYxe6wuUY8F0Y84W02ficgxWO+zxPGs8xeyxTLKiDfY/eQzDtKqwbDsSXGK23EodAUlSVIdbQ8040ttxl1tDrTiXEJUODS86y6h1lam3GzKFpgKScpJSc4IJBBwQSCCMV1rjaHUFDiQpKuQRI/Tgz6g1IeOdMe0mJ09dQQaafKxujE5rHcctruzs6jH4tlNRZza6sRJfMtcB2xbRLRFspk9DK0MtsltphhDew7qF2+4t1x0945tLrqUIStwpSUhThSkAnadpICRHScnG3aMNpDbaIQiShBJUE8khsKnaDJwPXoYqw3q23h2m6f8Ac/AtvpdlRYr/ADvBhvtV8TYbGdwGaOLIujRoyC7yC2vK6YzEn2TgitQYkOfIYRDlzVpLIAXLaTpd3qlrc3LaA57qtQJXfXDCnSGe9LbTbYLYKG8laikEkCZAiK1G+ZsXmWCpaS+AYRbtOBKS4UBalLghJckEJClR4ojm4TK9odu5SGLBnHoNVaxzGkMW+PBdDMalxD6jExhMBxuOhTb4D7CFsvtMrKVoSVpSsQiLu4SSA6pSTMtrAdSQpO1QhwKPiTgwRPpUqu2ZXMtoB/MkJSQRwQUiAccgVZ+1s3t1tQMhnYhSMRbvJX3ZeSZDJUZV/fyVSX5hctJ7nZ6gQ/JcWyyw1HisgththPaniRe1K9vu6RdPrcQxCWWxCWWk7Uo2toTAylI3FW4k/wCI5rWZsra1UtTLQQp07nF8qcJMgrUckpMwTHwrIL8AikN98WTELPsK04hsNvrkRWRz6K5cbFMUaPIHy+ojI30pJ8kBfkg8HtOxSCq/Wroi2ez6lbac/JX0rne1ainTkpMeO6bAgESAlasnqZA8+ZxivQI1aVVzTSlNKU0pTSlNKU0pTSla3Pxv6NxrePpvyRKAEWOCZ/QOOH3U5U5NjljGa5PgjsuJSwOQffj31VftDbIutMcjCmLlEx1S40rn/X59asPsOoFrUESRtdt18wPEh1P12+XQZrF/R/Iy0k+SAAeBx9B48eD5Pj6+edVqoGTn4Z6Zx/t6H413Gwx6/T9vv6VNLpJbHPv48njg/Xx/fx+nb+Xzx9z1+o+lfYSBnr98Y+xVuu6exO0e6F7jGU59gON5VkGFSvvmLWlxBTIk1EgPty0hlZWlL7CJTLMtMWUiTGblNNyEspeQlwbLN/e2aHmbW4eYZuAUvttKKUuJjbC0j/ERI3SFAEiSCRWu9Z2twttx5lt1TSitpS0hRQo53JMYIIBHInMTBHwstUGmnEAAJAUOSRzyRzxx9R78K/U8awDBBzgA889OY46R8pmsigAeZPWfv41ZnuZIHovjvSeQryPCh4J8geTx45HPPkn21tMklQ+U58MyOPvPGYxiUATHXk/DiOvmMf1rJz9mqx9Nn8QXfTInGSpGM9LFlHZeI59OXk+6mCx0o5I5SHYlPLUOCCr0z7gnVldhkk3N0qcJtoj1U8kj5+E8Y4n043tidtnapzm7UQPRLSs8jJ3J6GR8q3l9WVVeU0pTSlNKU0pTSlNKU0pWBD48NU/UbbdPe6imeanFdyMiw+3k9vKY5zjHGZ9Qt5ZPCG1T8QejNnkdz8ttABJBTXftDYUq0025ABS1cusrPl37QUjPqpnaBySRkCa7rsMsG6v7flbls08gYyGHSFxxkB7ccxCTiYrA7je59JLjNrS8wvhKR3pWPPCeB3cEfgPfzwARzxqp1J8uMzniOcmTmI9P1qxihRkgxEg8cifP4/OpuVuRRlAC5DHHt3BafHjx7KB5/uefY/T4n/7x9MY+8ivNpgeIwIHTn165Hy+NSfd7l462hwqfYUQD2n1Up58kg8FQHtwCDx/1HxokZwIJ5IMTAgTz6/rGBXkH83zgZPr8sVbpme7WMtoc/wAaOVcKHJcSfPPv/VzwPy4+n+uVCFScfUft+v2axEk81ZnuFurRLbkKbdY9l9oHaSeAT3Aknz+Pjg/qNbbbSk7Rz4v0mPXgdPhxRDRVgCSDJJEQcDk4nAPQzM1sCfZYMflZPuH1v7wpjKTTwKjZfa+vnFspaetHpeb5pdQ47nHatcaAvHXpSAoqaTKhqXx94QTZ/YZlYRevEAJJZaBnlQK3FAQeiSmflPlXB9t17VWDEyoB91QxAG5LaTj8xSrrGK3JtWBXBU0pTSlNKU0pTSlNKU0pVqXW50wUnWL0wbtdPtxMaqJecY26MUyRxsuHFM7p3UXGFZKAlDjpZq8hhwV2LTADsqpdsIYUBIOozWNORqun3FkohKnEBTSyMIfbIWys9YSsCR+Uq61JaRqK9K1G2vkDeGlw630dYcBQ83yMqbUds4Cwk9K8zDLM13f6ZtzMv2G3tpbPCtz8AvnsbyzHLNDja4NjHJDL8WQeW59TbxfTtcduYinYF3TTINlCkPRpKDqi9QsHbZ95pxotLZJS4gymITJIid+7lJ4UIIOTV72K7e/t2H2HCtl5ILbqdomTG1SZUEqTwsYKVAiAIqJn77ZCtousSlLBHIUHDyTx7kA/Kr6fUeOeDxxqKQ7bboUsDMEkwOYI5Mz6jp6VvuaVcdErIgkTtycxBSAev7VSDIN/coIW2ZEgElX/ADngDn2HjyCfr/qfA1LMtWygoiFfhmdpI6jP1A6CM5qLctLgEAtwROJyD1n1/Xz61SC03XyKyUrvlPAH25UT449uOBwfA5/HwRyTrYUW0DGwTPVIP9TBP1r1qydcICoQJg5M9eDBEmBz51B4rT7ibuZni22u3eP3ecbg59f1+K4Xh2PR3J99k2RWroZg1VZEbB5ddWVOyZLvpw66C1JsrB6PAhyZDXwwhy7uG7e3aW+4tSQlCAJJKiJ4/CJkqJAAyfKt51u2sLZy5uXUNsMJ3uqcVISmBIgRJVEJTtlRISCZr1D/AIS/QTC+HZ0YYBsZOkQLbc63lT9yd78jriHINzutl7MNV5HrJBAckUOKV0GowvH33Owy6rH2bFTLLs91tN26Ppw0yxatpClgb3lCYU8r8cExKUwEpMCQmYExVB65qZ1bUn7sApaJDdug4KGG8NggYClZWsCQFKIkgA1ku1KVEU0pTSlNKU0pTSlNKU0pTSlYwviG/CP6PviSU8V/evFLXGd06Ss/hWJb6baTYuObn4/AbcekxqiVMlQbKjy/Gmpjy5KcczCnuIMVxx92oXVSpDskxWoaLp2pgG6YCnAnal1JKXAnMAkfiSJMJUCMxFTGma9qmkEiyuVJaUoqWwsBxlSiIKtip2rIxvQUqwJJAitfu/8AsnOc1gWxt/8AEBiT4HzCOzuN03okTmUAq9JqROxDdaqjy1JT2hT6K+J3nlQZQT264q79mek3DinGbu6tt6txQAlxIB5A3EEScgzjoMZ7mz9qmrsthu5sbO624CwpxlRH+bbuEjmYknyAAqlMz7Jj1HWDxL/XPstHaJ/4jPTvnrzoB9yGnN3m0d3HsPV4B/Tz9W/s4smcf2jdqHn/AHcmOCfDzyCZOMcEivt/2o3TsgaRao4z3zhOPXaD8c5+lTPj/wBkBySYpKs3+Ii9Eb5QXWcE6Z4DDroCwVoalZRuzYoYJSCEuriSO3xy0rkgyzHYjSGikuF94icKWEJz18ASqf8AVURce0LWXQUtN2rAJBlKFLUIHmpRHMnjr6Vnq+Gj8E7pD+Gc5NzLAW8p3e36uIEiqtt+93HaewzGDTTO0TMewOnpa6txrbzH5yUJFm1j8D+OXqeGchyC2itR4zPQ2OlWGnbvdLVpkqEFaUysjOCtUqjPVRkY4AA5bUda1LVSPfbp11CTKWyohsH82wYn1Ix0rMNqRqLppSmlKaUpyD7HSlNKU0pTSlNKU0pTSlNKU0pTSlNKU0pTSlP/AL/3pSrWbGVvzU31kr+QYmTUEvNUMxJNTuQ/AmQcVn2nbEs26KwhPhmzqVOMyLUotkQV1DchEWtQ80A5DOXGsNuFPuFu8z71tQ41dFDvuzhCErLbiTK253uHeBs3FKBAFWhaaF7Lb+ybcPbXXNI1NPZ9Vw/Z6h2fTd2StftWveH7drUbR1pSbO9CHLWwQq0ceTcqYS/cqbWpaa74zV2bTUWxs5l6zLdiPNy6Wxt4VvGjvuSErQv7zEhxm3HWWm+xpcfsZ9N9aHG1OISsSzalqQFLR3ainxNlQXsJUSRuGCQAACMQcSc1XF41bMXTzVpdG9tm1hLN13DlsX0hAlZYdJca8SlApWdxKdxgECv/2Q==</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="13"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +889,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,581 +1167,3528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
         <v>52000</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>21000</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
         <v>50000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>20000</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
         <v>50000</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>20000</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
         <v>55000</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>22000</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
         <v>55000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>22000</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
         <v>59000</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>30000</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
         <v>50000</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>20000</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
         <v>59000</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>24000</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
         <v>67000</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>27000</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1">
         <v>59000</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>24000</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>18000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>18000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>35000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>14000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>18000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1">
+        <v>59000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>24000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" t="s">
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
         <v>44000</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>4900</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>3</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" t="s">
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>44000</v>
-      </c>
-      <c r="F19">
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>38000</v>
+      </c>
+      <c r="F20" s="1">
         <v>4900</v>
       </c>
-      <c r="G19">
+      <c r="G20" s="1">
         <v>3</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" t="s">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>48000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>38000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>38000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>42000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>42000</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
+        <v>48000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>49000</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1">
+        <v>52000</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
+        <v>46000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
+        <v>48000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1">
+        <v>38000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1">
+        <v>46000</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>48000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1">
+        <v>46000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>38000</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
+        <v>38000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>39000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>49000</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4900</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>55000</v>
+      </c>
+      <c r="F44" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1">
+        <v>56000</v>
+      </c>
+      <c r="F45" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>55000</v>
+      </c>
+      <c r="F46" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>38000</v>
-      </c>
-      <c r="F20">
-        <v>4900</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" t="s">
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1">
+        <v>54000</v>
+      </c>
+      <c r="F47" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1">
+        <v>56000</v>
+      </c>
+      <c r="F48" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1">
+        <v>68000</v>
+      </c>
+      <c r="F49" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1">
+        <v>52000</v>
+      </c>
+      <c r="F50" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1">
+        <v>52000</v>
+      </c>
+      <c r="F51" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1">
+        <v>49000</v>
+      </c>
+      <c r="F52" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1">
+        <v>52000</v>
+      </c>
+      <c r="F53" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1">
+        <v>49000</v>
+      </c>
+      <c r="F54" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1">
+        <v>62000</v>
+      </c>
+      <c r="F55" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1">
+        <v>56000</v>
+      </c>
+      <c r="F56" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>52000</v>
+      </c>
+      <c r="F57" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1">
+        <v>62000</v>
+      </c>
+      <c r="F58" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>56000</v>
+      </c>
+      <c r="F59" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1">
+        <v>56000</v>
+      </c>
+      <c r="F60" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G60" s="1">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1">
+        <v>62000</v>
+      </c>
+      <c r="F61" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1">
+        <v>62000</v>
+      </c>
+      <c r="F62" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1">
+        <v>62000</v>
+      </c>
+      <c r="F63" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>56000</v>
+      </c>
+      <c r="F64" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1">
+        <v>58000</v>
+      </c>
+      <c r="F65" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1">
+        <v>54000</v>
+      </c>
+      <c r="F66" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1">
+        <v>54000</v>
+      </c>
+      <c r="F67" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="1">
+        <v>68000</v>
+      </c>
+      <c r="F68" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1">
+        <v>64000</v>
+      </c>
+      <c r="F69" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1">
+        <v>52000</v>
+      </c>
+      <c r="F70" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G70" s="1">
+        <v>2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1">
         <v>48000</v>
       </c>
-      <c r="F21">
-        <v>4900</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>38000</v>
-      </c>
-      <c r="F22">
-        <v>4900</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>38000</v>
-      </c>
-      <c r="F23">
-        <v>4900</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
+      <c r="F71" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1">
+        <v>49091</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1">
+        <v>49091</v>
+      </c>
+      <c r="F73" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1">
+        <v>49091</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1">
+        <v>34363</v>
+      </c>
+      <c r="F75" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G75" s="1">
+        <v>4</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1">
+        <v>39273</v>
+      </c>
+      <c r="F76" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G76" s="1">
+        <v>4</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1">
+        <v>29455</v>
+      </c>
+      <c r="F77" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G77" s="1">
+        <v>4</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1">
+        <v>49091</v>
+      </c>
+      <c r="F78" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G78" s="1">
+        <v>4</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1">
+        <v>44182</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1">
+        <v>44182</v>
+      </c>
+      <c r="F80" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1">
+        <v>44182</v>
+      </c>
+      <c r="F81" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G81" s="1">
+        <v>4</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1">
+        <v>44182</v>
+      </c>
+      <c r="F82" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1">
+        <v>44182</v>
+      </c>
+      <c r="F83" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G83" s="1">
+        <v>4</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="1">
+        <v>44182</v>
+      </c>
+      <c r="F84" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="1">
+        <v>44182</v>
+      </c>
+      <c r="F85" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G85" s="1">
+        <v>4</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="1">
+        <v>39273</v>
+      </c>
+      <c r="F86" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G86" s="1">
+        <v>4</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="1">
+        <v>39273</v>
+      </c>
+      <c r="F87" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G87" s="1">
+        <v>4</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="1">
+        <v>44182</v>
+      </c>
+      <c r="F88" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G88" s="1">
+        <v>4</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1">
+        <v>68727</v>
+      </c>
+      <c r="F89" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G89" s="1">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="1">
+        <v>54000</v>
+      </c>
+      <c r="F90" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G90" s="1">
+        <v>4</v>
+      </c>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="1">
+        <v>44182</v>
+      </c>
+      <c r="F91" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G91" s="1">
+        <v>4</v>
+      </c>
+      <c r="H91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1">
+        <v>49091</v>
+      </c>
+      <c r="F92" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G92" s="1">
+        <v>4</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="1">
+        <v>49091</v>
+      </c>
+      <c r="F93" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G93" s="1">
+        <v>4</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="1">
+        <v>68727</v>
+      </c>
+      <c r="F94" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G94" s="1">
+        <v>4</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="1">
+        <v>49091</v>
+      </c>
+      <c r="F95" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="1">
+        <v>54000</v>
+      </c>
+      <c r="F96" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G96" s="1">
+        <v>4</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="1">
+        <v>54000</v>
+      </c>
+      <c r="F97" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G97" s="1">
+        <v>4</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1">
+        <v>44182</v>
+      </c>
+      <c r="F98" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G98" s="1">
+        <v>4</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1">
+        <v>49091</v>
+      </c>
+      <c r="F99" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G99" s="1">
+        <v>4</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="1">
+        <v>44182</v>
+      </c>
+      <c r="F100" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G100" s="1">
+        <v>4</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="1">
+        <v>58909</v>
+      </c>
+      <c r="F101" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G101" s="1">
+        <v>4</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="1">
+        <v>58909</v>
+      </c>
+      <c r="F102" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G102" s="1">
+        <v>4</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="1">
+        <v>58909</v>
+      </c>
+      <c r="F103" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G103" s="1">
+        <v>4</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="1">
+        <v>58909</v>
+      </c>
+      <c r="F104" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G104" s="1">
+        <v>4</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1">
+        <v>63818</v>
+      </c>
+      <c r="F105" s="1">
+        <v>4909</v>
+      </c>
+      <c r="G105" s="1">
+        <v>4</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1">
+        <v>69000</v>
+      </c>
+      <c r="F106" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G106" s="1">
+        <v>5</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="1">
+        <v>62000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>5</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="1">
+        <v>65000</v>
+      </c>
+      <c r="F108" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G108" s="1">
+        <v>5</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="1">
+        <v>65000</v>
+      </c>
+      <c r="F109" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G109" s="1">
+        <v>5</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="1">
+        <v>65000</v>
+      </c>
+      <c r="F110" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G110" s="1">
+        <v>5</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="1">
+        <v>75000</v>
+      </c>
+      <c r="F111" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G111" s="1">
+        <v>5</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="1">
+        <v>65000</v>
+      </c>
+      <c r="F112" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G112" s="1">
+        <v>5</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="1">
+        <v>65000</v>
+      </c>
+      <c r="F113" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G113" s="1">
+        <v>5</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="1">
+        <v>68000</v>
+      </c>
+      <c r="F114" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G114" s="1">
+        <v>5</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="1">
+        <v>65000</v>
+      </c>
+      <c r="F115" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G115" s="1">
+        <v>5</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="1">
+        <v>65000</v>
+      </c>
+      <c r="F116" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G116" s="1">
+        <v>5</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="1">
+        <v>68000</v>
+      </c>
+      <c r="F117" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G117" s="1">
+        <v>5</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="1">
+        <v>65000</v>
+      </c>
+      <c r="F118" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G118" s="1">
+        <v>5</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="1">
+        <v>59000</v>
+      </c>
+      <c r="F119" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G119" s="1">
+        <v>5</v>
+      </c>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="1">
+        <v>52000</v>
+      </c>
+      <c r="F120" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G120" s="1">
+        <v>5</v>
+      </c>
+      <c r="H120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="1">
+        <v>55000</v>
+      </c>
+      <c r="F121" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G121" s="1">
+        <v>5</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="1">
+        <v>59000</v>
+      </c>
+      <c r="F122" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G122" s="1">
+        <v>5</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="1">
+        <v>59000</v>
+      </c>
+      <c r="F123" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G123" s="1">
+        <v>5</v>
+      </c>
+      <c r="H123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="1">
+        <v>58000</v>
+      </c>
+      <c r="F124" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G124" s="1">
+        <v>5</v>
+      </c>
+      <c r="H124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="1">
+        <v>41000</v>
+      </c>
+      <c r="F125" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G125" s="1">
+        <v>5</v>
+      </c>
+      <c r="H125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="1">
+        <v>41000</v>
+      </c>
+      <c r="F126" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G126" s="1">
+        <v>5</v>
+      </c>
+      <c r="H126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="1">
+        <v>41000</v>
+      </c>
+      <c r="F127" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G127" s="1">
+        <v>5</v>
+      </c>
+      <c r="H127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="1">
+        <v>65000</v>
+      </c>
+      <c r="F128" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G128" s="1">
+        <v>5</v>
+      </c>
+      <c r="H128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="1">
+        <v>65000</v>
+      </c>
+      <c r="F129" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G129" s="1">
+        <v>5</v>
+      </c>
+      <c r="H129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="1">
+        <v>55000</v>
+      </c>
+      <c r="F130" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G130" s="1">
+        <v>5</v>
+      </c>
+      <c r="H130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="1">
+        <v>65000</v>
+      </c>
+      <c r="F131" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G131" s="1">
+        <v>5</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="1">
+        <v>55000</v>
+      </c>
+      <c r="F132" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G132" s="1">
+        <v>5</v>
+      </c>
+      <c r="H132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="1">
+        <v>52000</v>
+      </c>
+      <c r="F133" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G133" s="1">
+        <v>5</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="1">
+        <v>52000</v>
+      </c>
+      <c r="F134" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G134" s="1">
+        <v>5</v>
+      </c>
+      <c r="H134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="1">
+        <v>52000</v>
+      </c>
+      <c r="F135" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G135" s="1">
+        <v>5</v>
+      </c>
+      <c r="H135" s="1">
         <v>1</v>
       </c>
     </row>

--- a/src/documents/MilkTeaData.xlsx
+++ b/src/documents/MilkTeaData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MilkTea\src\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MilkTea\src\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7BD72B-467F-461B-86C8-C92B76AC8FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF69AAD-C322-4324-A480-1B1E74603514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1447,15 +1447,6 @@
     <t>Golden bubble milk tea</t>
   </si>
   <si>
-    <t>Bubble green milk tea with coconut jelly - size S</t>
-  </si>
-  <si>
-    <t>Brown sugar fresh milk bubble - size S</t>
-  </si>
-  <si>
-    <t>Konjac jelly milk tea - size S</t>
-  </si>
-  <si>
     <t>Oolong sweetened milk tea</t>
   </si>
   <si>
@@ -1490,6 +1481,15 @@
   </si>
   <si>
     <t xml:space="preserve">Lychee Lemon Yakult </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubble green milk tea with coconut jelly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown sugar fresh milk bubble </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konjac jelly milk tea </t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1500,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1568,7 +1568,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1849,19 +1849,19 @@
   <dimension ref="A1:J211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.09765625" style="1"/>
+    <col min="2" max="2" width="34.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.09765625" style="1"/>
+    <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>8</v>
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
@@ -2193,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>8</v>
@@ -2223,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>8</v>
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
@@ -2343,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>210</v>
       </c>

--- a/src/documents/MilkTeaData.xlsx
+++ b/src/documents/MilkTeaData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MilkTea\src\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MilkTea\src\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF69AAD-C322-4324-A480-1B1E74603514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C7D13A-E656-4C51-9B68-344CEA1F8B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="636">
   <si>
     <t>value</t>
   </si>
@@ -1490,6 +1490,459 @@
   </si>
   <si>
     <t xml:space="preserve">Konjac jelly milk tea </t>
+  </si>
+  <si>
+    <t>Strawberry Raspberry Cheesecake Cream Frappuccino</t>
+  </si>
+  <si>
+    <t>Hazelnut Mocha Cheesecake Frappuccino</t>
+  </si>
+  <si>
+    <t>Hot Caffè Latte</t>
+  </si>
+  <si>
+    <t>Iced Caffè Latte</t>
+  </si>
+  <si>
+    <t>Hot Cappuccino</t>
+  </si>
+  <si>
+    <t>Iced Cappuccino</t>
+  </si>
+  <si>
+    <t>Hot Flat White</t>
+  </si>
+  <si>
+    <t>Iced Flat White</t>
+  </si>
+  <si>
+    <t>Iced Caffè Mocha</t>
+  </si>
+  <si>
+    <t>Hot Caffè Mocha</t>
+  </si>
+  <si>
+    <t>Hot Caramel Macchiato</t>
+  </si>
+  <si>
+    <t>Iced Caramel Macchiato</t>
+  </si>
+  <si>
+    <t>Hot Caffè Americano</t>
+  </si>
+  <si>
+    <t>Iced Caffè Americano</t>
+  </si>
+  <si>
+    <t>Hot Asian Dolce Latte</t>
+  </si>
+  <si>
+    <t>Iced Asian Dolce Latte</t>
+  </si>
+  <si>
+    <t>Iced Dolce Misto</t>
+  </si>
+  <si>
+    <t>Hot Almondmilk Hazelnut Latte</t>
+  </si>
+  <si>
+    <t>Iced Almondmilk Hazelnut Latte</t>
+  </si>
+  <si>
+    <t>Caramel Frappuccino</t>
+  </si>
+  <si>
+    <t>Mocha Frappuccino</t>
+  </si>
+  <si>
+    <t>Espresso Frappuccino</t>
+  </si>
+  <si>
+    <t>Vanilla Cream Frappuccino</t>
+  </si>
+  <si>
+    <t>Caramel Cream Frappuccino</t>
+  </si>
+  <si>
+    <t>Strawberries &amp; Cream Frappuccino</t>
+  </si>
+  <si>
+    <t>Green Tea Cream Frappuccino</t>
+  </si>
+  <si>
+    <t>Java Chip Frappuccino</t>
+  </si>
+  <si>
+    <t>Chocolate Chip Cream Frappuccino</t>
+  </si>
+  <si>
+    <t>Coffee Frappuccino</t>
+  </si>
+  <si>
+    <t>Almondmilk Hazelnut Cream Frappuccino</t>
+  </si>
+  <si>
+    <t>Almondmilk Hazelnut Frappuccino</t>
+  </si>
+  <si>
+    <t>Mango Passion Fruit</t>
+  </si>
+  <si>
+    <t>Raspberry Black Currant</t>
+  </si>
+  <si>
+    <t>Hot Matcha &amp; Espresso Fusion</t>
+  </si>
+  <si>
+    <t>Iced Matcha &amp; Espresso Fusion</t>
+  </si>
+  <si>
+    <t>Hot Golden Monkey Tea with Ruby Grapefruit</t>
+  </si>
+  <si>
+    <t>Iced Black Tea with Ruby Grapefruit</t>
+  </si>
+  <si>
+    <t>Iced Shaken Hibiscus Tea with Pomegranate Peals</t>
+  </si>
+  <si>
+    <t>Iced Strawberry Oolong Lemonade</t>
+  </si>
+  <si>
+    <t>Hot Green Tea Latte</t>
+  </si>
+  <si>
+    <t>Iced Green Tea Latte</t>
+  </si>
+  <si>
+    <t>Hot Chai Tea Latte</t>
+  </si>
+  <si>
+    <t>Iced Chai Tea Latte</t>
+  </si>
+  <si>
+    <t>Hot Earl Grey Tea Lattte</t>
+  </si>
+  <si>
+    <t>Iced Shaken Lemon Golden Monkey Tea</t>
+  </si>
+  <si>
+    <t>Iced Shaken Lemon Zen Tea</t>
+  </si>
+  <si>
+    <t>Iced Shaken Lemon Hibiscus Tea</t>
+  </si>
+  <si>
+    <t>Hot Signature Chocolate</t>
+  </si>
+  <si>
+    <t>Iced Signature Chocolate</t>
+  </si>
+  <si>
+    <t>Cold Brew</t>
+  </si>
+  <si>
+    <t>Vanilla Sweet Cream Cold Brew</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20220607034346020946/photo/2b49fdb9_88f2b83d2d93.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20220607034353014647/photo/916b8561_ebc39eaf7fa4.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151251012138/photo/5d1e4397_148a45e11fe1.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151252025936/photo/76956bb1_61e7d6ad0999.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151253032466/photo/18e8293a_653b5f516e87.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151255027774/photo/21933ed0_42d137cac24a.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151256031546/photo/a0d0d62e_e652d5f7227b.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151258025837/photo/75e39d86_4a399f7e6fea.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151259049344/photo/64380748_dd609311f119.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151301018147/photo/6ed5d5bf_148a45e11fe1.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151302017927/photo/4065172c_04b3ea6260ef.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151302037412/photo/2eddcdf3_8f30ec621d70.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151303021288/photo/0a2deb71_1baa041251db.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151304032510/photo/8a81aacf_63ca723bb531.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151305022969/photo/4940365c_148a45e11fe1.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151305051153/photo/77f9f565_8acbd978b197.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151306033313/photo/f07af109_bc1a94b199ff.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211126210823010702/photo/9791c903_de0b48119a42.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211126210704022339/photo/202194ea_4a399f7e6fea.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151307015619/photo/99984cfc_8124a2a6ea16.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151307027904/photo/fd49184b_2cfba400e603.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151308029152/photo/59c4e77f_7ec792a33040.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151309017710/photo/9127978b_c15eebdad65f.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151310015975/photo/47dbb683_74e45933db15.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151310031857/photo/c5051419_a3e8d0bad0d5.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151311029382/photo/96a7d470_777d9f7556ab.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151312028320/photo/957efb02_0d146dc9bcdc.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151313022296/photo/a103791a_0d146dc9bcdc.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151313033661/photo/157b969e_7ec792a33040.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211126211151018835/photo/6a1f87bb_abac4fd676e7.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211126211133016934/photo/9dae7daf_16524aa8ae68.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151314027563/photo/0c3c2cea_d48cf581c34e.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151315018729/photo/afddc9b4_15cdc5d8d7ed.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151315022039/photo/3a58171c_35d218bd1b32.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151316018295/photo/f98e42c8_16ed883f2190.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151317019622/photo/1822cd61_eabffde80ce8.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151318018221/photo/298f463b_b74865015b48.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151318033134/photo/d6c6d657_8ccabd134461.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151319026742/photo/8b5552ce_c9ef7f5ceb57.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151319036461/photo/0d3277f1_eeb452304a01.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151320010333/photo/e64ae04d_a1fd793ba7ef.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151321026534/photo/d0693566_14611543615e.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151322027043/photo/5c57ab4e_ce5882317fdf.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151322041062/photo/868c6e35_4e23c62fae27.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151324025559/photo/f54843eb_8db5b23ff64a.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151324033503/photo/5f65504f_95ee9a24a82c.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151325015997/photo/a3eb91f3_14c22ff3afd8.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151326025102/photo/d5c2266f_148a45e11fe1.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151326044220/photo/54a5d518_4d6b39c7e22e.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151327020268/photo/0b6ee72f_06ecf0217d52.png</t>
+  </si>
+  <si>
+    <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20211025151328020627/photo/7facd186_2677d57eaf69.png</t>
+  </si>
+  <si>
+    <t>Tạm ngưng xuất hoá đơn GTGT cho các đơn hàng khi đặt qua ứng dụng giao hàng.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn trên app. Sữa được đánh nóng với shot Espresso đậm đà, đây là thức uống phổ biến nhất của chúng tôi.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn trên app. Shot Espresso đậm đà được hoàn thiện trọn vẹn với món sữa lạnh, đây là thức uống phổ biến nhất của chúng tôi.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn trên app. Thức uống kết hợp giữa cà phê Espresso cùng sữa đánh nóng đem tới lớp bọt dày mịn, tăng thêm hương vị đậm đà.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn trên app. Tạm ngưng xuất hoá đơn GTGT cho các đơn hàng khi đặt qua ứng dụng giao hàng.Shot Espresso trích xuất theo phương pháp Ristretto đậm đà kết hợp cùng sữa đánh nóng.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn trên app. Shot Espresso trích xuất theo phương pháp Ristretto đậm đà kết hợp cùng sữa lạnh.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Cà phê Espresso và hương vị sô cô la đậm đà, ngọt đắng kết hợp với sữa tươi lạnh và phủ lớp kem mịn màng trên bề mặt.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn, không phục vụ whipped cream cho món nóng. Cà phê Espresso và hương vị sô cô la đậm đà, ngọt đắng kết hợp với sữa đánh nóng</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Thức uống cà phê đặc trưng của Starbucks với lớp váng sữa mịn và sốt caramen được trang trí trên bề mặt và hương vani.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Thức uống cà phê đặc trưng của Starbucks với sự hòa quyện của sữa lạnh, hương vani, trang trí trên bề măt là lớp sốt caramel.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Cà phê mang phong cách châu Âu, đậm đà với sự kết hợp của cà phê Espresso và nước nóng.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Cà phê mang phong cách châu Âu, đậm đà với sự kết hợp của cà phê Espresso và nước đá.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn, không phục vụ whipped cream cho món nóng. Thức uống mang đậm đà bản sắc đặc trưng của cà phê châu Á</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Thức uống mang đậm đà bản sắc đặc trưng của cà phê châu Á cùng hương vị ngọt ngào đậm đà, mạnh mẽ từ cà phê Espresso trứ danh</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Dolce Misto là thức uống tôn vinh văn hóa cà phê Việt Nam, với hương vị đậm đà độc đáo được bổ sung bởi cà phê French Roast.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Sự kết hợp hài hòa của shot espresso với sữa hạnh nhân nóng cùng hương vị của siro hạt dẻ tràn ngập hương vị ấm áp.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Sự kết hợp hài hòa của shot espresso với sữa hạnh nhân cùng hương vị của siro hạt dẻ. Thơm ngậy và tràn ngập hương vị ấm áp</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Thức uống đá xay kết hợp giữa cà phê, đá lạnh, sữa tươi, cùng với lớp kem mịn màng và sốt caramen ngọt ngào trên bề mặt.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Sự kết hợp của hương vị cà phê và sô cô la, được xay cùng đá và sữa, cuối cùng được trang trí với lớp kem mịn màng.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Thức uống có sự kết hợp của một shot cà phê espresso cùng với sữa, được xay hòa quyện với đá đem đến niềm vui thưởng thức.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Thức uống sánh mịn với hương vị vani, kết hợp cùng sữa, đá, lớp kem mịn màng đem đến trải nghiệm ngọt ngào.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Thức uống đậm đà với hương vị caramel kết hợp cùng sữa, xay với đá, trên cùng là lớp kem mịn màng và sốt caramel ngọt ngào</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Dâu và sữa được xay trộn hòa quyện với đá, trên cùng là lớp kem mịn màng.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Sự kết hợp đầy sảng khoái của bột trà xanh Nhật Bản thượng hạng và sữa tươi được xay với đá, trên cùng là lớp kem mịn màng</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Cà phê mocha kết hợp với sữa, kẹo sô cô la được xay hòa quyện với đá, trên cùng là lớp kem mịn màng và sốt sô cô la ngọt ngào</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn trên app.Chỉ thực hiện món nước với các yêu cầu có sẵn. Đây là sự kết hợp của sốt mocha, kẹo sô cô la, sữa được xay hòa quyện cùng đá, trên cùng là lớp kem và sốt sô cô la ngọt</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Thức uống đá xay kết hợp giữa cà phê, đá lạnh, sữa tươi cho ra hương vị hòa quyện độc đáo.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Sự kết hợp hài hòa của sữa hạnh nhân cùng hương vị của siro hạt dẻ. Thơm ngậy và tràn ngập hương vị ấm áp, phiên bản đá xay</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Sự kết hợp hài hòa của cà phê, sữa hạnh nhân cùng hương vị của siro hạt dẻ xay cùng đá</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Hỗn hợp nước juice vị xoài và chanh dây, kết hợp cùng trà hibiscus thượng hạng xay với đá cho hương vị thanh mát.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Hỗn hợp nước juice vị phúc bồn tử và lý chua đen, kết hợp cùng trà xanh thượng hạng xay với đá cho hương vị thanh mát.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Sự kết hợp của trà xanh, cà phê espresso đậm đặc cùng sữa mịn màng sẽ tạo ra món nước nhiều tầng độc đáo và đầy hương vị.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Sự kết hợp của trà xanh, cà phê espresso đậm đặc cùng sữa mịn màng sẽ tạo ra món nước nhiều tầng độc đáo và đầy hương vị</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Trà đen Starbucks® Teavana™ đậm đặc là sự kết hợp giữa bưởi đỏ, mật ong hòa quyện với lớp syrup ngọt dịu.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Trà đen Starbucks® Teavana™ đậm đặc là sự kết hợp giữa bưởi đỏ, mật ong hòa quyện với lớp syrup ngọt dịu và đá viên</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Sự kết hợp của của trà Starbucks® Teavana™ Hibicus thảo mộc cùng với nước lựu và lớp syrup ngọt dịu.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Hương vị dâu mọng nước trong hỗn hợp nước trái cây kết hợp với trà xanh Teavana và nước chanh</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Trà xanh Nhật Bản thượng hạng với vị ngọt thanh dịu kết hợp cùng sữa đánh nóng</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Trà xanh Nhật Bản thượng hạng với vị ngọt thanh dịu kết hợp cùng sữa.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Sự kết hợp ấn tượng giữa trà Chai có vị cay thảo mộc cùng sữa tươi được đánh nóng.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Sự kết hợp ấn tượng giữa trà Chai có vị cay thảo mộc cùng sữa tươi và đá viên.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Món trà Bá Tước thượng hạng kết hợp cùng vị vani ấm áp và sữa đánh nóng.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Món trà giải nhiệt thanh mát, với sự kết hợp của trà đen thượng hạng, nước chanh, cùng syrup ngọt lắc cùng với đá.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Món trà giải nhiệt thanh mát, với sự kết hợp của trà xanh thượng hạng, nước chanh, cùng syrup ngọt lắc cùng với đá.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Món trà giải nhiệt thanh mát, với sự kết hợp của trà hibiscus thảo mộc thượng hạng, nước chanh, cùng syrup ngọt lắc cùng với đá.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn, không phục vụ whipped cream cho món nóng. Hương vị sô cô la truyền thống đặc trưng của Starbucks kết hợp cùng sữa đánh nóng</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Hương vị sô cô la truyền thống đặc trưng của Starbucks kết hợp cùng sữa.</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Phương pháp ủ chậm với nước lạnh trong hơn 10 tiếng để cho ra món cà phê mát lạnh, mượt mà với hậu vị ngọt tự nhiên và đậm đà</t>
+  </si>
+  <si>
+    <t>Chỉ thực hiện món nước với các yêu cầu có sẵn. Ngay khi được phục vụ, cà phê Cold Brew được rưới một lớp sốt kem vị vani ngọt ngào, từ từ thẩm thấu qua lớp cà phê lạnh.</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1953,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1568,7 +2021,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1846,22 +2299,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J211"/>
+  <dimension ref="A1:J262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="1"/>
-    <col min="2" max="2" width="34.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.09765625" style="1"/>
-    <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.09765625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +2346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1923,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1953,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1983,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2013,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2043,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2073,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2103,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2133,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2163,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2193,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2223,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2253,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2283,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2313,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2343,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2373,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2401,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2429,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2457,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2485,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2513,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2541,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2569,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2597,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2625,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2653,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2681,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2709,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2737,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2765,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2793,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2821,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2849,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2877,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2905,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2933,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2961,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2989,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3017,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3045,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3073,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3101,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3129,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3157,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3185,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3213,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3241,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3269,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3297,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3325,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3353,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3381,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3409,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3437,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3465,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3493,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3521,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3549,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3577,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3605,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3633,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3661,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3689,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3717,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3745,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3773,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3801,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3829,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3857,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3885,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3913,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3941,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3969,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3997,7 +4450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4023,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4049,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4075,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4103,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4131,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4159,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4187,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4215,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4243,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4271,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4299,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4327,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4355,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4383,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4411,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4439,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4467,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4495,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4523,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -4551,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -4577,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -4605,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -4633,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -4661,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -4689,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -4717,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -4745,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -4773,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -4801,7 +5254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -4829,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -4857,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -4885,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -4913,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -4941,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -4969,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -4997,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5025,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5053,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5081,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -5109,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -5137,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -5165,7 +5618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -5193,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -5221,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -5249,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -5277,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -5305,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -5333,7 +5786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -5361,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -5389,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -5417,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -5445,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -5473,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -5501,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -5529,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -5557,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -5585,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -5613,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -5641,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -5669,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -5697,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -5725,7 +6178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -5753,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -5781,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -5809,7 +6262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -5837,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -5865,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -5893,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -5921,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -5949,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -5977,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -6005,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -6033,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -6061,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -6089,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -6117,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -6145,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -6173,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -6201,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -6229,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -6257,7 +6710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -6285,7 +6738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -6313,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -6341,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -6369,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -6397,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -6425,7 +6878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -6453,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -6481,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -6509,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -6537,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -6565,7 +7018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -6593,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -6621,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -6649,7 +7102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -6677,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -6705,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -6733,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -6761,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -6789,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -6817,7 +7270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -6845,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -6873,7 +7326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -6901,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -6929,7 +7382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -6957,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -6985,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -7013,7 +7466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -7041,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -7069,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -7097,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -7125,7 +7578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -7153,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -7181,7 +7634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -7209,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -7237,7 +7690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -7265,7 +7718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -7293,7 +7746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -7321,7 +7774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>194</v>
       </c>
@@ -7349,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -7377,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>196</v>
       </c>
@@ -7405,7 +7858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -7433,7 +7886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>198</v>
       </c>
@@ -7461,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -7489,7 +7942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>200</v>
       </c>
@@ -7517,7 +7970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -7545,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>202</v>
       </c>
@@ -7573,7 +8026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -7601,7 +8054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>204</v>
       </c>
@@ -7629,7 +8082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -7657,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>206</v>
       </c>
@@ -7685,7 +8138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -7713,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>208</v>
       </c>
@@ -7741,7 +8194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -7769,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>210</v>
       </c>
@@ -7794,6 +8247,1434 @@
         <v>5</v>
       </c>
       <c r="J211" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2">
+        <v>110000</v>
+      </c>
+      <c r="H212" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I212" s="2">
+        <v>6</v>
+      </c>
+      <c r="J212" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2">
+        <v>110000</v>
+      </c>
+      <c r="H213" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I213" s="2">
+        <v>6</v>
+      </c>
+      <c r="J213" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H214" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I214" s="2">
+        <v>6</v>
+      </c>
+      <c r="J214" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H215" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I215" s="2">
+        <v>6</v>
+      </c>
+      <c r="J215" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H216" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I216" s="2">
+        <v>6</v>
+      </c>
+      <c r="J216" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H217" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I217" s="2">
+        <v>6</v>
+      </c>
+      <c r="J217" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H218" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I218" s="2">
+        <v>6</v>
+      </c>
+      <c r="J218" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H219" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I219" s="2">
+        <v>6</v>
+      </c>
+      <c r="J219" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2">
+        <v>95000</v>
+      </c>
+      <c r="H220" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I220" s="2">
+        <v>6</v>
+      </c>
+      <c r="J220" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2">
+        <v>95000</v>
+      </c>
+      <c r="H221" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I221" s="2">
+        <v>6</v>
+      </c>
+      <c r="J221" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2">
+        <v>95000</v>
+      </c>
+      <c r="H222" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I222" s="2">
+        <v>6</v>
+      </c>
+      <c r="J222" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2">
+        <v>95000</v>
+      </c>
+      <c r="H223" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I223" s="2">
+        <v>6</v>
+      </c>
+      <c r="J223" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2">
+        <v>75000</v>
+      </c>
+      <c r="H224" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I224" s="2">
+        <v>6</v>
+      </c>
+      <c r="J224" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2">
+        <v>75000</v>
+      </c>
+      <c r="H225" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I225" s="2">
+        <v>6</v>
+      </c>
+      <c r="J225" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H226" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I226" s="2">
+        <v>6</v>
+      </c>
+      <c r="J226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H227" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I227" s="2">
+        <v>6</v>
+      </c>
+      <c r="J227" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2">
+        <v>75000</v>
+      </c>
+      <c r="H228" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I228" s="2">
+        <v>6</v>
+      </c>
+      <c r="J228" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2">
+        <v>95000</v>
+      </c>
+      <c r="H229" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I229" s="2">
+        <v>6</v>
+      </c>
+      <c r="J229" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2">
+        <v>95000</v>
+      </c>
+      <c r="H230" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I230" s="2">
+        <v>6</v>
+      </c>
+      <c r="J230" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2">
+        <v>105000</v>
+      </c>
+      <c r="H231" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I231" s="2">
+        <v>6</v>
+      </c>
+      <c r="J231" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2">
+        <v>105000</v>
+      </c>
+      <c r="H232" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I232" s="2">
+        <v>6</v>
+      </c>
+      <c r="J232" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2">
+        <v>105000</v>
+      </c>
+      <c r="H233" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I233" s="2">
+        <v>6</v>
+      </c>
+      <c r="J233" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2">
+        <v>105000</v>
+      </c>
+      <c r="H234" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I234" s="2">
+        <v>6</v>
+      </c>
+      <c r="J234" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2">
+        <v>105000</v>
+      </c>
+      <c r="H235" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I235" s="2">
+        <v>6</v>
+      </c>
+      <c r="J235" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2">
+        <v>105000</v>
+      </c>
+      <c r="H236" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I236" s="2">
+        <v>6</v>
+      </c>
+      <c r="J236" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2">
+        <v>110000</v>
+      </c>
+      <c r="H237" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I237" s="2">
+        <v>6</v>
+      </c>
+      <c r="J237" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2">
+        <v>110000</v>
+      </c>
+      <c r="H238" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I238" s="2">
+        <v>6</v>
+      </c>
+      <c r="J238" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2">
+        <v>110000</v>
+      </c>
+      <c r="H239" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I239" s="2">
+        <v>6</v>
+      </c>
+      <c r="J239" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2">
+        <v>95000</v>
+      </c>
+      <c r="H240" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I240" s="2">
+        <v>6</v>
+      </c>
+      <c r="J240" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>240</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2">
+        <v>105000</v>
+      </c>
+      <c r="H241" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I241" s="2">
+        <v>6</v>
+      </c>
+      <c r="J241" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>241</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2">
+        <v>105000</v>
+      </c>
+      <c r="H242" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I242" s="2">
+        <v>6</v>
+      </c>
+      <c r="J242" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2">
+        <v>95000</v>
+      </c>
+      <c r="H243" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I243" s="2">
+        <v>6</v>
+      </c>
+      <c r="J243" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>243</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2">
+        <v>95000</v>
+      </c>
+      <c r="H244" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I244" s="2">
+        <v>6</v>
+      </c>
+      <c r="J244" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>244</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H245" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I245" s="2">
+        <v>6</v>
+      </c>
+      <c r="J245" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>245</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H246" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I246" s="2">
+        <v>6</v>
+      </c>
+      <c r="J246" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <v>246</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H247" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I247" s="2">
+        <v>6</v>
+      </c>
+      <c r="J247" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>247</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H248" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I248" s="2">
+        <v>6</v>
+      </c>
+      <c r="J248" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>248</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H249" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I249" s="2">
+        <v>6</v>
+      </c>
+      <c r="J249" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>249</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H250" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I250" s="2">
+        <v>6</v>
+      </c>
+      <c r="J250" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>250</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H251" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I251" s="2">
+        <v>6</v>
+      </c>
+      <c r="J251" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>251</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H252" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I252" s="2">
+        <v>6</v>
+      </c>
+      <c r="J252" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>252</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H253" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I253" s="2">
+        <v>6</v>
+      </c>
+      <c r="J253" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>253</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H254" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I254" s="2">
+        <v>6</v>
+      </c>
+      <c r="J254" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>254</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H255" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I255" s="2">
+        <v>6</v>
+      </c>
+      <c r="J255" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>255</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2">
+        <v>80000</v>
+      </c>
+      <c r="H256" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I256" s="2">
+        <v>6</v>
+      </c>
+      <c r="J256" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>256</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2">
+        <v>80000</v>
+      </c>
+      <c r="H257" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I257" s="2">
+        <v>6</v>
+      </c>
+      <c r="J257" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="2">
+        <v>257</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2">
+        <v>80000</v>
+      </c>
+      <c r="H258" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I258" s="2">
+        <v>6</v>
+      </c>
+      <c r="J258" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <v>258</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H259" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I259" s="2">
+        <v>6</v>
+      </c>
+      <c r="J259" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="2">
+        <v>259</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H260" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I260" s="2">
+        <v>6</v>
+      </c>
+      <c r="J260" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>260</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2">
+        <v>80000</v>
+      </c>
+      <c r="H261" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I261" s="2">
+        <v>6</v>
+      </c>
+      <c r="J261" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="2">
+        <v>261</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2">
+        <v>85000</v>
+      </c>
+      <c r="H262" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I262" s="2">
+        <v>6</v>
+      </c>
+      <c r="J262" s="2">
         <v>1</v>
       </c>
     </row>

--- a/src/documents/MilkTeaData.xlsx
+++ b/src/documents/MilkTeaData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MilkTea\src\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD9FD9-2287-4E6E-B558-B04CDC1677A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFAACE8-2657-4F65-B2DA-B4CE51E996EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1191">
   <si>
     <t>value</t>
   </si>
@@ -1510,18 +1510,12 @@
     <t>Bạc sỉu</t>
   </si>
   <si>
-    <t>Cà phê hạnh nhân</t>
-  </si>
-  <si>
     <t>Cà phê hạt phỉ</t>
   </si>
   <si>
     <t>Cà phê ủ lạnh</t>
   </si>
   <si>
-    <t>Cà phê caramel</t>
-  </si>
-  <si>
     <t>Trà sữa oolong nướng</t>
   </si>
   <si>
@@ -3052,21 +3046,12 @@
     <t>Vietnamese coffee with condensed milk (m)</t>
   </si>
   <si>
-    <t>Vietnamese coffee with condensed milk (l)</t>
-  </si>
-  <si>
     <t>Vietnamese black coffee (m)</t>
   </si>
   <si>
-    <t>Vietnamese black coffee (l)</t>
-  </si>
-  <si>
     <t>White vietnamese coffee (m)</t>
   </si>
   <si>
-    <t>White vietnamese coffee (l)</t>
-  </si>
-  <si>
     <t>Almond coffee (ice)</t>
   </si>
   <si>
@@ -3094,21 +3079,12 @@
     <t>Roasted oolong milk tea (m)</t>
   </si>
   <si>
-    <t>Roasted oolong milk tea (l)</t>
-  </si>
-  <si>
-    <t>Black tea milk tea (l)</t>
-  </si>
-  <si>
     <t>Black tea milk tea (m)</t>
   </si>
   <si>
     <t>Jasmine milk tea (m)</t>
   </si>
   <si>
-    <t>Jasmine milk tea (l)</t>
-  </si>
-  <si>
     <t>Rambutan milk tea</t>
   </si>
   <si>
@@ -3118,42 +3094,24 @@
     <t>Greentea latte (ice)</t>
   </si>
   <si>
-    <t>Honey lemon tea (hot)</t>
-  </si>
-  <si>
-    <t>Honey lemon tea (l)</t>
-  </si>
-  <si>
     <t>Honey lemon tea (m)</t>
   </si>
   <si>
-    <t>Mocktail apple tea (l)</t>
-  </si>
-  <si>
     <t>Red currant tea (l)</t>
   </si>
   <si>
     <t>Mocktail apple tea (m)</t>
   </si>
   <si>
-    <t>Lychee tea (l)</t>
-  </si>
-  <si>
     <t>Lychee tea (m)</t>
   </si>
   <si>
-    <t>Peach tea (l)</t>
-  </si>
-  <si>
     <t>Peach tea (m)</t>
   </si>
   <si>
     <t>Pineapple tea (m)</t>
   </si>
   <si>
-    <t>Pineapple tea (l)</t>
-  </si>
-  <si>
     <t>Ci-orange hibicus tea</t>
   </si>
   <si>
@@ -3202,9 +3160,6 @@
     <t>Dark mocha (ice)</t>
   </si>
   <si>
-    <t>Katinat chocolate (l)</t>
-  </si>
-  <si>
     <t>Katinat chocolate (m)</t>
   </si>
   <si>
@@ -3635,6 +3590,24 @@
   </si>
   <si>
     <t>https://d1sag4ddilekf6.azureedge.net/compressed/items/VNITE20220522150209030367/photo/fe99682d066d4ca6ad1ce59e524114ae_1653231729922946916.jpg</t>
+  </si>
+  <si>
+    <t>Cà phê hạnh nhân (ice)</t>
+  </si>
+  <si>
+    <t>Cà phê hạnh nhân (hot)</t>
+  </si>
+  <si>
+    <t>Cà phê caramel (hot)</t>
+  </si>
+  <si>
+    <t>Cà phê caramel (ice)</t>
+  </si>
+  <si>
+    <t>Trà xanh latte (hot)</t>
+  </si>
+  <si>
+    <t>Trà xanh latte (ice)</t>
   </si>
 </sst>
 </file>
@@ -4011,10 +3984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I539"/>
+  <dimension ref="A1:I526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="I346" sqref="I346"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4022,7 +3995,7 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
     <col min="7" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
@@ -4069,7 +4042,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -4096,7 +4069,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -4123,7 +4096,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
@@ -4150,7 +4123,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
@@ -4177,7 +4150,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -4204,7 +4177,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
@@ -4305,7 +4278,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>24</v>
@@ -4332,7 +4305,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
@@ -4359,14 +4332,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>7</v>
@@ -4386,7 +4359,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -4413,14 +4386,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
@@ -4440,14 +4413,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>7</v>
@@ -4467,7 +4440,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>32</v>
@@ -4494,14 +4467,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -4526,7 +4499,7 @@
         <v>238</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -4551,7 +4524,7 @@
         <v>239</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -4576,7 +4549,7 @@
         <v>240</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -4601,7 +4574,7 @@
         <v>241</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -4626,7 +4599,7 @@
         <v>242</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -5019,14 +4992,14 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2">
@@ -5044,14 +5017,14 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="2" t="s">
         <v>259</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2">
@@ -5244,14 +5217,14 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2">
@@ -5294,7 +5267,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="2" t="s">
@@ -5319,7 +5292,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="2" t="s">
@@ -5344,7 +5317,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="2" t="s">
@@ -5394,7 +5367,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="2" t="s">
@@ -5569,7 +5542,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>97</v>
@@ -5650,14 +5623,14 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="2" t="s">
         <v>346</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2">
@@ -5675,7 +5648,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="2" t="s">
@@ -5700,7 +5673,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="2" t="s">
@@ -5725,7 +5698,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="2" t="s">
@@ -5750,7 +5723,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="2" t="s">
@@ -5775,7 +5748,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="2" t="s">
@@ -5800,7 +5773,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="2" t="s">
@@ -5850,7 +5823,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="2" t="s">
@@ -5875,7 +5848,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="2" t="s">
@@ -5900,14 +5873,14 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="2" t="s">
         <v>357</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2">
@@ -5925,7 +5898,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="2" t="s">
@@ -5950,7 +5923,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="2" t="s">
@@ -5975,7 +5948,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="2" t="s">
@@ -6000,7 +5973,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="2" t="s">
@@ -6025,7 +5998,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="2" t="s">
@@ -6050,7 +6023,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="2" t="s">
@@ -6075,7 +6048,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="2" t="s">
@@ -6100,7 +6073,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="2" t="s">
@@ -6125,14 +6098,14 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="2" t="s">
         <v>366</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2">
@@ -6150,14 +6123,14 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="2" t="s">
         <v>367</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2">
@@ -6175,7 +6148,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="2" t="s">
@@ -6200,7 +6173,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="2" t="s">
@@ -6225,7 +6198,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="2" t="s">
@@ -6250,7 +6223,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="2" t="s">
@@ -6275,7 +6248,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="2" t="s">
@@ -6300,7 +6273,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="2" t="s">
@@ -6325,7 +6298,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="2" t="s">
@@ -6350,7 +6323,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="2" t="s">
@@ -6375,7 +6348,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="2" t="s">
@@ -6400,7 +6373,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="2" t="s">
@@ -6425,7 +6398,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="2" t="s">
@@ -6450,7 +6423,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="2" t="s">
@@ -6475,7 +6448,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>100</v>
@@ -6502,7 +6475,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>101</v>
@@ -6583,7 +6556,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>98</v>
@@ -6637,7 +6610,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>105</v>
@@ -6691,7 +6664,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>107</v>
@@ -6772,7 +6745,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>110</v>
@@ -6799,7 +6772,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>111</v>
@@ -6826,7 +6799,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>112</v>
@@ -6907,7 +6880,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>115</v>
@@ -7366,7 +7339,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>53</v>
@@ -7393,7 +7366,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>54</v>
@@ -7447,7 +7420,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>56</v>
@@ -7636,7 +7609,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>68</v>
@@ -7744,7 +7717,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>71</v>
@@ -7960,7 +7933,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>154</v>
@@ -8068,7 +8041,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>158</v>
@@ -8149,7 +8122,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>161</v>
@@ -8284,7 +8257,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>161</v>
@@ -8338,7 +8311,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>167</v>
@@ -8419,7 +8392,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>170</v>
@@ -8446,7 +8419,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>171</v>
@@ -8689,7 +8662,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>180</v>
@@ -9202,7 +9175,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>222</v>
@@ -9445,7 +9418,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>230</v>
@@ -9580,14 +9553,14 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2" t="s">
         <v>390</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2">
@@ -9605,14 +9578,14 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2" t="s">
         <v>391</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2">
@@ -9630,14 +9603,14 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2" t="s">
         <v>392</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="2">
@@ -9655,14 +9628,14 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2" t="s">
         <v>393</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2">
@@ -9680,14 +9653,14 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2" t="s">
         <v>394</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="2">
@@ -9705,14 +9678,14 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2" t="s">
         <v>395</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2">
@@ -9730,14 +9703,14 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2">
@@ -9755,14 +9728,14 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2" t="s">
         <v>397</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2">
@@ -9780,14 +9753,14 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2" t="s">
         <v>398</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2">
@@ -9805,14 +9778,14 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2" t="s">
         <v>399</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2">
@@ -9830,14 +9803,14 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2" t="s">
         <v>400</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="2">
@@ -9855,14 +9828,14 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2" t="s">
         <v>401</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="2">
@@ -9880,14 +9853,14 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2" t="s">
         <v>402</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="2">
@@ -9905,14 +9878,14 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2" t="s">
         <v>403</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="2">
@@ -9930,14 +9903,14 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2" t="s">
         <v>404</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2">
@@ -9955,14 +9928,14 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2" t="s">
         <v>405</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2">
@@ -9980,14 +9953,14 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2" t="s">
         <v>406</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" s="2">
@@ -10005,14 +9978,14 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2" t="s">
         <v>407</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="2">
@@ -10030,14 +10003,14 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="2">
@@ -10055,14 +10028,14 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2" t="s">
         <v>409</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="2">
@@ -10080,14 +10053,14 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2" t="s">
         <v>410</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="2">
@@ -10105,14 +10078,14 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2" t="s">
         <v>411</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="2">
@@ -10130,14 +10103,14 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2" t="s">
         <v>412</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2">
@@ -10155,14 +10128,14 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2" t="s">
         <v>413</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2">
@@ -10180,14 +10153,14 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="2" t="s">
         <v>414</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2">
@@ -10205,14 +10178,14 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2" t="s">
         <v>415</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2">
@@ -10230,14 +10203,14 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2" t="s">
         <v>416</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="2">
@@ -10255,14 +10228,14 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2" t="s">
         <v>417</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="2">
@@ -10280,14 +10253,14 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2" t="s">
         <v>418</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="2">
@@ -10305,14 +10278,14 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2" t="s">
         <v>419</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" s="2">
@@ -10330,14 +10303,14 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2" t="s">
         <v>420</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2">
@@ -10355,14 +10328,14 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2" t="s">
         <v>421</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="2">
@@ -10380,14 +10353,14 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2" t="s">
         <v>422</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F244" s="2"/>
       <c r="G244" s="2">
@@ -10405,14 +10378,14 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2" t="s">
         <v>423</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" s="2">
@@ -10430,14 +10403,14 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2" t="s">
         <v>424</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="2">
@@ -10455,14 +10428,14 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2" t="s">
         <v>425</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="2">
@@ -10480,14 +10453,14 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2" t="s">
         <v>426</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" s="2">
@@ -10505,14 +10478,14 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2" t="s">
         <v>427</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="2">
@@ -10530,14 +10503,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2" t="s">
         <v>428</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" s="2">
@@ -10555,14 +10528,14 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2" t="s">
         <v>429</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F251" s="2"/>
       <c r="G251" s="2">
@@ -10580,14 +10553,14 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2" t="s">
         <v>430</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="2">
@@ -10605,14 +10578,14 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2" t="s">
         <v>431</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2">
@@ -10630,14 +10603,14 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="2" t="s">
         <v>432</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="2">
@@ -10655,14 +10628,14 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="2" t="s">
         <v>433</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="2">
@@ -10680,14 +10653,14 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2" t="s">
         <v>434</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2">
@@ -10705,14 +10678,14 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="2" t="s">
         <v>435</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="2">
@@ -10730,14 +10703,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2" t="s">
         <v>436</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2">
@@ -10755,14 +10728,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2" t="s">
         <v>437</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2">
@@ -10780,14 +10753,14 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2" t="s">
         <v>438</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" s="2">
@@ -10805,14 +10778,14 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2" t="s">
         <v>439</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" s="2">
@@ -10830,14 +10803,14 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2" t="s">
         <v>440</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F262" s="2"/>
       <c r="G262" s="2">
@@ -10862,14 +10835,14 @@
         <v>441</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F263" s="2"/>
       <c r="G263" s="2">
         <v>35000</v>
       </c>
       <c r="H263" s="2">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="I263" s="2">
         <v>7</v>
@@ -10880,21 +10853,21 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="H264" s="2">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="I264" s="2">
         <v>7</v>
@@ -10905,21 +10878,21 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="H265" s="2">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="I265" s="2">
         <v>7</v>
@@ -10930,18 +10903,18 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>489</v>
+        <v>1185</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2">
-        <v>45000</v>
+        <v>52000</v>
       </c>
       <c r="H266" s="2">
         <v>0</v>
@@ -10955,18 +10928,18 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>490</v>
+        <v>1186</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="H267" s="2">
         <v>0</v>
@@ -10980,18 +10953,18 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2">
-        <v>48000</v>
+        <v>52000</v>
       </c>
       <c r="H268" s="2">
         <v>0</v>
@@ -11005,18 +10978,18 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>491</v>
+        <v>1007</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="H269" s="2">
         <v>0</v>
@@ -11030,14 +11003,14 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>492</v>
+        <v>1008</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2">
@@ -11055,18 +11028,18 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>1012</v>
+        <v>817</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="H271" s="2">
         <v>0</v>
@@ -11080,18 +11053,18 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>484</v>
+        <v>1187</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="H272" s="2">
         <v>0</v>
@@ -11105,18 +11078,18 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>493</v>
+        <v>1188</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>819</v>
+        <v>1009</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2">
-        <v>55000</v>
+        <v>52000</v>
       </c>
       <c r="H273" s="2">
         <v>0</v>
@@ -11130,18 +11103,18 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>1014</v>
+        <v>485</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2">
-        <v>52000</v>
+        <v>35000</v>
       </c>
       <c r="H274" s="2">
         <v>0</v>
@@ -11155,18 +11128,18 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>485</v>
+        <v>1010</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="H275" s="2">
         <v>0</v>
@@ -11180,14 +11153,14 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E276" s="7" t="s">
-        <v>1015</v>
+        <v>486</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2">
@@ -11205,18 +11178,18 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>1016</v>
+        <v>487</v>
       </c>
       <c r="F277" s="2"/>
       <c r="G277" s="2">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="H277" s="2">
         <v>0</v>
@@ -11230,21 +11203,21 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>486</v>
+        <v>1013</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" s="2">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="H278" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I278" s="2">
         <v>7</v>
@@ -11255,21 +11228,21 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>491</v>
+        <v>84</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="2" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="H279" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I279" s="2">
         <v>7</v>
@@ -11280,21 +11253,21 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>487</v>
+        <v>1015</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="H280" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I280" s="2">
         <v>7</v>
@@ -11309,14 +11282,14 @@
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E281" s="7" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2">
-        <v>45000</v>
+        <v>60000</v>
       </c>
       <c r="H281" s="2">
         <v>0</v>
@@ -11330,18 +11303,18 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>495</v>
+        <v>1189</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="H282" s="2">
         <v>0</v>
@@ -11355,18 +11328,18 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>84</v>
+        <v>1190</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2">
-        <v>55000</v>
+        <v>52000</v>
       </c>
       <c r="H283" s="2">
         <v>0</v>
@@ -11380,21 +11353,21 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>84</v>
+        <v>496</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2">
         <v>45000</v>
       </c>
       <c r="H284" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I284" s="2">
         <v>7</v>
@@ -11405,18 +11378,18 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="H285" s="2">
         <v>0</v>
@@ -11430,21 +11403,21 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="H286" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I286" s="2">
         <v>7</v>
@@ -11455,21 +11428,21 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="2">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="H287" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I287" s="2">
         <v>7</v>
@@ -11480,21 +11453,21 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="H288" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I288" s="2">
         <v>7</v>
@@ -11505,21 +11478,21 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2">
-        <v>52000</v>
+        <v>45000</v>
       </c>
       <c r="H289" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I289" s="2">
         <v>7</v>
@@ -11530,18 +11503,18 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="2">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="H290" s="2">
         <v>0</v>
@@ -11555,18 +11528,18 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="2">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="H291" s="2">
         <v>0</v>
@@ -11580,18 +11553,18 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="H292" s="2">
         <v>0</v>
@@ -11605,18 +11578,18 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2">
-        <v>55000</v>
+        <v>52000</v>
       </c>
       <c r="H293" s="2">
         <v>0</v>
@@ -11630,18 +11603,18 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="2" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>1031</v>
+        <v>505</v>
       </c>
       <c r="F294" s="2"/>
       <c r="G294" s="2">
-        <v>55000</v>
+        <v>62000</v>
       </c>
       <c r="H294" s="2">
         <v>0</v>
@@ -11655,18 +11628,18 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>1032</v>
+        <v>506</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" s="2">
-        <v>45000</v>
+        <v>62000</v>
       </c>
       <c r="H295" s="2">
         <v>0</v>
@@ -11680,18 +11653,18 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F296" s="2"/>
       <c r="G296" s="2">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="H296" s="2">
         <v>0</v>
@@ -11705,18 +11678,18 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="2" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" s="2">
-        <v>45000</v>
+        <v>62000</v>
       </c>
       <c r="H297" s="2">
         <v>0</v>
@@ -11730,18 +11703,18 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>124</v>
+        <v>509</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F298" s="2"/>
       <c r="G298" s="2">
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="H298" s="2">
         <v>0</v>
@@ -11755,18 +11728,18 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>124</v>
+        <v>510</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" s="2">
-        <v>45000</v>
+        <v>52000</v>
       </c>
       <c r="H299" s="2">
         <v>0</v>
@@ -11780,18 +11753,18 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>502</v>
+        <v>146</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" s="2">
-        <v>45000</v>
+        <v>52000</v>
       </c>
       <c r="H300" s="2">
         <v>0</v>
@@ -11805,18 +11778,18 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="E301" s="7" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F301" s="2"/>
       <c r="G301" s="2">
-        <v>55000</v>
+        <v>52000</v>
       </c>
       <c r="H301" s="2">
         <v>0</v>
@@ -11830,18 +11803,18 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" s="2">
-        <v>55000</v>
+        <v>52000</v>
       </c>
       <c r="H302" s="2">
         <v>0</v>
@@ -11855,18 +11828,18 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="2" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" s="2">
-        <v>65000</v>
+        <v>52000</v>
       </c>
       <c r="H303" s="2">
         <v>0</v>
@@ -11880,18 +11853,18 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" s="2">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="H304" s="2">
         <v>0</v>
@@ -11905,14 +11878,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F305" s="2"/>
       <c r="G305" s="2">
@@ -11930,18 +11903,18 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="2" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="E306" s="7" t="s">
-        <v>507</v>
+        <v>1039</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" s="2">
-        <v>62000</v>
+        <v>52000</v>
       </c>
       <c r="H306" s="2">
         <v>0</v>
@@ -11955,18 +11928,18 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="2" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E307" s="7" t="s">
-        <v>508</v>
+        <v>1040</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" s="2">
-        <v>62000</v>
+        <v>52000</v>
       </c>
       <c r="H307" s="2">
         <v>0</v>
@@ -11980,21 +11953,21 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="E308" s="7" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" s="2">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="H308" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I308" s="2">
         <v>7</v>
@@ -12005,18 +11978,18 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" s="2">
-        <v>62000</v>
+        <v>50000</v>
       </c>
       <c r="H309" s="2">
         <v>0</v>
@@ -12030,18 +12003,18 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F310" s="2"/>
       <c r="G310" s="2">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="H310" s="2">
         <v>0</v>
@@ -12055,18 +12028,18 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F311" s="2"/>
       <c r="G311" s="2">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="H311" s="2">
         <v>0</v>
@@ -12080,18 +12053,18 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>146</v>
+        <v>521</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="E312" s="7" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F312" s="2"/>
       <c r="G312" s="2">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="H312" s="2">
         <v>0</v>
@@ -12105,18 +12078,18 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="2" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F313" s="2"/>
       <c r="G313" s="2">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="H313" s="2">
         <v>0</v>
@@ -12130,18 +12103,18 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F314" s="2"/>
       <c r="G314" s="2">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="H314" s="2">
         <v>0</v>
@@ -12155,18 +12128,18 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="2" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F315" s="2"/>
       <c r="G315" s="2">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="H315" s="2">
         <v>0</v>
@@ -12180,18 +12153,18 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E316" s="7" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" s="2">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="H316" s="2">
         <v>0</v>
@@ -12205,18 +12178,18 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="2" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="E317" s="7" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2">
-        <v>52000</v>
+        <v>50000</v>
       </c>
       <c r="H317" s="2">
         <v>0</v>
@@ -12230,24 +12203,24 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>518</v>
+        <v>127</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E318" s="7" t="s">
-        <v>1053</v>
+        <v>543</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2">
-        <v>52000</v>
+        <v>29000</v>
       </c>
       <c r="H318" s="2">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="I318" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -12255,24 +12228,24 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>519</v>
+        <v>128</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E319" s="7" t="s">
-        <v>1054</v>
+        <v>544</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F319" s="2"/>
       <c r="G319" s="2">
-        <v>52000</v>
+        <v>29000</v>
       </c>
       <c r="H319" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I319" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -12280,24 +12253,24 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E320" s="7" t="s">
-        <v>1055</v>
+        <v>545</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" s="2">
-        <v>55000</v>
+        <v>29000</v>
       </c>
       <c r="H320" s="2">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="I320" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -12305,24 +12278,24 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>520</v>
+        <v>819</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E321" s="7" t="s">
-        <v>1056</v>
+        <v>546</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F321" s="2"/>
       <c r="G321" s="2">
         <v>45000</v>
       </c>
       <c r="H321" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I321" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -12330,24 +12303,24 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>519</v>
+        <v>820</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E322" s="7" t="s">
-        <v>1057</v>
+        <v>547</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" s="2">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="H322" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I322" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -12355,24 +12328,24 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>521</v>
+        <v>821</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E323" s="7" t="s">
-        <v>1058</v>
+        <v>548</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F323" s="2"/>
       <c r="G323" s="2">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="H323" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I323" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -12380,24 +12353,24 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E324" s="7" t="s">
-        <v>1059</v>
+        <v>549</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="H324" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I324" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -12405,24 +12378,24 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E325" s="7" t="s">
-        <v>1060</v>
+        <v>550</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F325" s="2"/>
       <c r="G325" s="2">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="H325" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I325" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -12430,24 +12403,24 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E326" s="7" t="s">
-        <v>1061</v>
+        <v>551</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F326" s="2"/>
       <c r="G326" s="2">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="H326" s="2">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="I326" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -12455,24 +12428,24 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E327" s="7" t="s">
-        <v>1062</v>
+        <v>552</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F327" s="2"/>
       <c r="G327" s="2">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="H327" s="2">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="I327" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -12480,24 +12453,24 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="E328" s="7" t="s">
-        <v>1063</v>
+        <v>553</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2">
-        <v>50000</v>
+        <v>69000</v>
       </c>
       <c r="H328" s="2">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="I328" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -12505,24 +12478,24 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E329" s="7" t="s">
-        <v>1064</v>
+        <v>554</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" s="2">
-        <v>50000</v>
+        <v>69000</v>
       </c>
       <c r="H329" s="2">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="I329" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -12530,24 +12503,24 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="E330" s="7" t="s">
-        <v>1065</v>
+        <v>555</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" s="2">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="H330" s="2">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="I330" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -12555,21 +12528,21 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>127</v>
+        <v>531</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2">
-        <v>29000</v>
+        <v>55000</v>
       </c>
       <c r="H331" s="2">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="I331" s="2">
         <v>8</v>
@@ -12580,21 +12553,21 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>128</v>
+        <v>532</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" s="2">
-        <v>29000</v>
+        <v>55000</v>
       </c>
       <c r="H332" s="2">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="I332" s="2">
         <v>8</v>
@@ -12605,21 +12578,21 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" s="2">
-        <v>29000</v>
+        <v>55000</v>
       </c>
       <c r="H333" s="2">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="I333" s="2">
         <v>8</v>
@@ -12630,21 +12603,21 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>821</v>
+        <v>534</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F334" s="2"/>
       <c r="G334" s="2">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="H334" s="2">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="I334" s="2">
         <v>8</v>
@@ -12655,11 +12628,11 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>822</v>
+        <v>535</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>280</v>
@@ -12669,7 +12642,7 @@
         <v>45000</v>
       </c>
       <c r="H335" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I335" s="2">
         <v>8</v>
@@ -12680,11 +12653,11 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>823</v>
+        <v>536</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>280</v>
@@ -12694,7 +12667,7 @@
         <v>45000</v>
       </c>
       <c r="H336" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I336" s="2">
         <v>8</v>
@@ -12705,11 +12678,11 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>487</v>
+        <v>537</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>280</v>
@@ -12719,7 +12692,7 @@
         <v>45000</v>
       </c>
       <c r="H337" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I337" s="2">
         <v>8</v>
@@ -12730,11 +12703,11 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>280</v>
@@ -12744,7 +12717,7 @@
         <v>45000</v>
       </c>
       <c r="H338" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="I338" s="2">
         <v>8</v>
@@ -12755,21 +12728,21 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F339" s="2"/>
       <c r="G339" s="2">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="H339" s="2">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="I339" s="2">
         <v>8</v>
@@ -12780,21 +12753,21 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F340" s="2"/>
       <c r="G340" s="2">
-        <v>65000</v>
+        <v>39000</v>
       </c>
       <c r="H340" s="2">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="I340" s="2">
         <v>8</v>
@@ -12805,18 +12778,18 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="2" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F341" s="2"/>
       <c r="G341" s="2">
-        <v>69000</v>
+        <v>39000</v>
       </c>
       <c r="H341" s="2">
         <v>16000</v>
@@ -12830,18 +12803,18 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="2" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>280</v>
       </c>
       <c r="F342" s="2"/>
       <c r="G342" s="2">
-        <v>69000</v>
+        <v>39000</v>
       </c>
       <c r="H342" s="2">
         <v>16000</v>
@@ -12855,11 +12828,11 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>532</v>
+        <v>822</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>280</v>
@@ -12869,7 +12842,7 @@
         <v>55000</v>
       </c>
       <c r="H343" s="2">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="I343" s="2">
         <v>8</v>
@@ -12880,11 +12853,11 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>533</v>
+        <v>823</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>280</v>
@@ -12894,7 +12867,7 @@
         <v>55000</v>
       </c>
       <c r="H344" s="2">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="I344" s="2">
         <v>8</v>
@@ -12905,11 +12878,11 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>534</v>
+        <v>824</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>280</v>
@@ -12919,7 +12892,7 @@
         <v>55000</v>
       </c>
       <c r="H345" s="2">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="I345" s="2">
         <v>8</v>
@@ -12930,24 +12903,24 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>535</v>
+        <v>825</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>280</v>
+        <v>1051</v>
       </c>
       <c r="F346" s="2"/>
       <c r="G346" s="2">
-        <v>55000</v>
+        <v>39000</v>
       </c>
       <c r="H346" s="2">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="I346" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -12955,24 +12928,24 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>536</v>
+        <v>826</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>280</v>
+        <v>1052</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" s="2">
-        <v>55000</v>
+        <v>39000</v>
       </c>
       <c r="H347" s="2">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="I347" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -12980,24 +12953,24 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>537</v>
+        <v>827</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="2" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>280</v>
+        <v>1053</v>
       </c>
       <c r="F348" s="2"/>
       <c r="G348" s="2">
-        <v>45000</v>
+        <v>39000</v>
       </c>
       <c r="H348" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I348" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -13005,24 +12978,24 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>538</v>
+        <v>828</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="2" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>280</v>
+        <v>1054</v>
       </c>
       <c r="F349" s="2"/>
       <c r="G349" s="2">
-        <v>45000</v>
+        <v>49000</v>
       </c>
       <c r="H349" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I349" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -13030,24 +13003,24 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>539</v>
+        <v>829</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>280</v>
+        <v>1055</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" s="2">
-        <v>45000</v>
+        <v>49000</v>
       </c>
       <c r="H350" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I350" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -13055,24 +13028,24 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>540</v>
+        <v>830</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="2" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>280</v>
+        <v>1056</v>
       </c>
       <c r="F351" s="2"/>
       <c r="G351" s="2">
-        <v>45000</v>
+        <v>49000</v>
       </c>
       <c r="H351" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I351" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -13080,24 +13053,24 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>541</v>
+        <v>831</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>280</v>
+        <v>1057</v>
       </c>
       <c r="F352" s="2"/>
       <c r="G352" s="2">
-        <v>45000</v>
+        <v>49000</v>
       </c>
       <c r="H352" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I352" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -13105,24 +13078,24 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>542</v>
+        <v>832</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>280</v>
+        <v>1058</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" s="2">
-        <v>39000</v>
+        <v>49000</v>
       </c>
       <c r="H353" s="2">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="I353" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -13130,24 +13103,24 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>543</v>
+        <v>833</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="2" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>280</v>
+        <v>1059</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" s="2">
-        <v>39000</v>
+        <v>49000</v>
       </c>
       <c r="H354" s="2">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="I354" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -13155,24 +13128,24 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>544</v>
+        <v>834</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="2" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>280</v>
+        <v>1060</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" s="2">
-        <v>39000</v>
+        <v>49000</v>
       </c>
       <c r="H355" s="2">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="I355" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -13180,24 +13153,24 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="2" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>280</v>
+        <v>1061</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" s="2">
         <v>55000</v>
       </c>
       <c r="H356" s="2">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="I356" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -13205,24 +13178,24 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>280</v>
+        <v>1062</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" s="2">
         <v>55000</v>
       </c>
       <c r="H357" s="2">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="I357" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -13230,24 +13203,24 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="2" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>280</v>
+        <v>1063</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" s="2">
         <v>55000</v>
       </c>
       <c r="H358" s="2">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="I358" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -13255,18 +13228,18 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" s="2">
-        <v>39000</v>
+        <v>29000</v>
       </c>
       <c r="H359" s="2">
         <v>10000</v>
@@ -13280,18 +13253,18 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>1067</v>
+        <v>620</v>
       </c>
       <c r="F360" s="2"/>
       <c r="G360" s="2">
-        <v>39000</v>
+        <v>35000</v>
       </c>
       <c r="H360" s="2">
         <v>10000</v>
@@ -13305,18 +13278,18 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>829</v>
+        <v>490</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="2" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" s="2">
-        <v>39000</v>
+        <v>29000</v>
       </c>
       <c r="H361" s="2">
         <v>10000</v>
@@ -13330,18 +13303,18 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="2" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="F362" s="2"/>
       <c r="G362" s="2">
-        <v>49000</v>
+        <v>35000</v>
       </c>
       <c r="H362" s="2">
         <v>10000</v>
@@ -13355,18 +13328,18 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="2" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" s="2">
-        <v>49000</v>
+        <v>29000</v>
       </c>
       <c r="H363" s="2">
         <v>10000</v>
@@ -13380,18 +13353,18 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="2" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="F364" s="2"/>
       <c r="G364" s="2">
-        <v>49000</v>
+        <v>35000</v>
       </c>
       <c r="H364" s="2">
         <v>10000</v>
@@ -13405,18 +13378,18 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="F365" s="2"/>
       <c r="G365" s="2">
-        <v>49000</v>
+        <v>75000</v>
       </c>
       <c r="H365" s="2">
         <v>10000</v>
@@ -13430,14 +13403,14 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="2" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="F366" s="2"/>
       <c r="G366" s="2">
@@ -13455,14 +13428,14 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" s="2">
@@ -13480,14 +13453,14 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" s="2">
@@ -13505,18 +13478,18 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="2" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" s="2">
-        <v>55000</v>
+        <v>49000</v>
       </c>
       <c r="H369" s="2">
         <v>10000</v>
@@ -13530,18 +13503,18 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="2" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="F370" s="2"/>
       <c r="G370" s="2">
-        <v>55000</v>
+        <v>39000</v>
       </c>
       <c r="H370" s="2">
         <v>10000</v>
@@ -13555,18 +13528,18 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="F371" s="2"/>
       <c r="G371" s="2">
-        <v>55000</v>
+        <v>39000</v>
       </c>
       <c r="H371" s="2">
         <v>10000</v>
@@ -13580,18 +13553,18 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" s="2">
-        <v>29000</v>
+        <v>49000</v>
       </c>
       <c r="H372" s="2">
         <v>10000</v>
@@ -13605,18 +13578,18 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>622</v>
+        <v>1071</v>
       </c>
       <c r="F373" s="2"/>
       <c r="G373" s="2">
-        <v>35000</v>
+        <v>49000</v>
       </c>
       <c r="H373" s="2">
         <v>10000</v>
@@ -13630,18 +13603,18 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>490</v>
+        <v>852</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" s="2">
-        <v>29000</v>
+        <v>45000</v>
       </c>
       <c r="H374" s="2">
         <v>10000</v>
@@ -13655,18 +13628,18 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="F375" s="2"/>
       <c r="G375" s="2">
-        <v>35000</v>
+        <v>39000</v>
       </c>
       <c r="H375" s="2">
         <v>10000</v>
@@ -13680,18 +13653,18 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" s="2" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="F376" s="2"/>
       <c r="G376" s="2">
-        <v>29000</v>
+        <v>45000</v>
       </c>
       <c r="H376" s="2">
         <v>10000</v>
@@ -13705,18 +13678,18 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="2" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F377" s="2"/>
       <c r="G377" s="2">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="H377" s="2">
         <v>10000</v>
@@ -13730,18 +13703,18 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="2" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F378" s="2"/>
       <c r="G378" s="2">
-        <v>75000</v>
+        <v>49000</v>
       </c>
       <c r="H378" s="2">
         <v>10000</v>
@@ -13755,14 +13728,14 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" s="2">
@@ -13780,18 +13753,18 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="2" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F380" s="2"/>
       <c r="G380" s="2">
-        <v>49000</v>
+        <v>55000</v>
       </c>
       <c r="H380" s="2">
         <v>10000</v>
@@ -13805,14 +13778,14 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="2" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" s="2">
@@ -13830,18 +13803,18 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="2" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F382" s="2"/>
       <c r="G382" s="2">
-        <v>49000</v>
+        <v>55000</v>
       </c>
       <c r="H382" s="2">
         <v>10000</v>
@@ -13855,18 +13828,18 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="2" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1085</v>
+        <v>621</v>
       </c>
       <c r="F383" s="2"/>
       <c r="G383" s="2">
-        <v>39000</v>
+        <v>49000</v>
       </c>
       <c r="H383" s="2">
         <v>10000</v>
@@ -13880,18 +13853,18 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="2" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1085</v>
+        <v>621</v>
       </c>
       <c r="F384" s="2"/>
       <c r="G384" s="2">
-        <v>39000</v>
+        <v>55000</v>
       </c>
       <c r="H384" s="2">
         <v>10000</v>
@@ -13905,18 +13878,18 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="2" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="F385" s="2"/>
       <c r="G385" s="2">
-        <v>49000</v>
+        <v>105000</v>
       </c>
       <c r="H385" s="2">
         <v>10000</v>
@@ -13930,18 +13903,18 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="2" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F386" s="2"/>
       <c r="G386" s="2">
-        <v>49000</v>
+        <v>55000</v>
       </c>
       <c r="H386" s="2">
         <v>10000</v>
@@ -13955,18 +13928,18 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="2" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1087</v>
+        <v>622</v>
       </c>
       <c r="F387" s="2"/>
       <c r="G387" s="2">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="H387" s="2">
         <v>10000</v>
@@ -13980,18 +13953,18 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="2" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F388" s="2"/>
       <c r="G388" s="2">
-        <v>39000</v>
+        <v>55000</v>
       </c>
       <c r="H388" s="2">
         <v>10000</v>
@@ -14005,18 +13978,18 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1088</v>
+        <v>623</v>
       </c>
       <c r="F389" s="2"/>
       <c r="G389" s="2">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="H389" s="2">
         <v>10000</v>
@@ -14030,18 +14003,18 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>857</v>
+        <v>868</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="2" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="F390" s="2"/>
       <c r="G390" s="2">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="H390" s="2">
         <v>10000</v>
@@ -14055,18 +14028,18 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="2" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="F391" s="2"/>
       <c r="G391" s="2">
-        <v>49000</v>
+        <v>55000</v>
       </c>
       <c r="H391" s="2">
         <v>10000</v>
@@ -14080,18 +14053,18 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="2" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="F392" s="2"/>
       <c r="G392" s="2">
-        <v>49000</v>
+        <v>55000</v>
       </c>
       <c r="H392" s="2">
         <v>10000</v>
@@ -14105,18 +14078,18 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="2" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="F393" s="2"/>
       <c r="G393" s="2">
-        <v>55000</v>
+        <v>95000</v>
       </c>
       <c r="H393" s="2">
         <v>10000</v>
@@ -14130,24 +14103,24 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="C394" s="2"/>
-      <c r="D394" s="2" t="s">
-        <v>608</v>
+      <c r="D394" s="9" t="s">
+        <v>1135</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="F394" s="2"/>
       <c r="G394" s="2">
-        <v>49000</v>
+        <v>59000</v>
       </c>
       <c r="H394" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I394" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.25">
@@ -14155,24 +14128,24 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="C395" s="2"/>
-      <c r="D395" s="2" t="s">
-        <v>609</v>
+      <c r="D395" s="9" t="s">
+        <v>1136</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="F395" s="2"/>
       <c r="G395" s="2">
         <v>55000</v>
       </c>
       <c r="H395" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I395" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.25">
@@ -14180,24 +14153,24 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="C396" s="2"/>
-      <c r="D396" s="2" t="s">
-        <v>610</v>
+      <c r="D396" s="9" t="s">
+        <v>1137</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>623</v>
+        <v>1088</v>
       </c>
       <c r="F396" s="2"/>
       <c r="G396" s="2">
-        <v>49000</v>
+        <v>65000</v>
       </c>
       <c r="H396" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I396" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.25">
@@ -14205,24 +14178,24 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="C397" s="2"/>
-      <c r="D397" s="2" t="s">
-        <v>611</v>
+      <c r="D397" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>623</v>
+        <v>1089</v>
       </c>
       <c r="F397" s="2"/>
       <c r="G397" s="2">
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="H397" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I397" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
@@ -14230,24 +14203,24 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="2" t="s">
-        <v>612</v>
+        <v>1139</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="F398" s="2"/>
       <c r="G398" s="2">
-        <v>105000</v>
+        <v>59000</v>
       </c>
       <c r="H398" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I398" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.25">
@@ -14255,24 +14228,24 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="2" t="s">
-        <v>613</v>
+        <v>1140</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F399" s="2"/>
       <c r="G399" s="2">
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="H399" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I399" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.25">
@@ -14280,24 +14253,24 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="2" t="s">
-        <v>614</v>
+        <v>1141</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>624</v>
+        <v>1092</v>
       </c>
       <c r="F400" s="2"/>
       <c r="G400" s="2">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="H400" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I400" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
@@ -14305,24 +14278,24 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2" t="s">
-        <v>615</v>
+        <v>1142</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" s="2">
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="H401" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I401" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -14330,24 +14303,24 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2" t="s">
-        <v>616</v>
+        <v>1143</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>625</v>
+        <v>1094</v>
       </c>
       <c r="F402" s="2"/>
       <c r="G402" s="2">
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="H402" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I402" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
@@ -14355,24 +14328,24 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="2" t="s">
-        <v>617</v>
+        <v>1144</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" s="2">
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="H403" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I403" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
@@ -14380,24 +14353,24 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="2" t="s">
-        <v>618</v>
+        <v>1145</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="F404" s="2"/>
       <c r="G404" s="2">
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="H404" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I404" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
@@ -14405,24 +14378,24 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="2" t="s">
-        <v>619</v>
+        <v>1146</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F405" s="2"/>
       <c r="G405" s="2">
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="H405" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I405" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -14430,24 +14403,24 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2" t="s">
-        <v>620</v>
+        <v>1147</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" s="2">
-        <v>95000</v>
+        <v>59000</v>
       </c>
       <c r="H406" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I406" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
@@ -14455,14 +14428,14 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="C407" s="2"/>
-      <c r="D407" s="9" t="s">
-        <v>1150</v>
+      <c r="D407" s="2" t="s">
+        <v>1148</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F407" s="2"/>
       <c r="G407" s="2">
@@ -14480,18 +14453,18 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="C408" s="2"/>
-      <c r="D408" s="9" t="s">
-        <v>1151</v>
+      <c r="D408" s="2" t="s">
+        <v>1149</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F408" s="2"/>
       <c r="G408" s="2">
-        <v>55000</v>
+        <v>59000</v>
       </c>
       <c r="H408" s="2">
         <v>0</v>
@@ -14505,14 +14478,14 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="C409" s="2"/>
-      <c r="D409" s="9" t="s">
-        <v>1152</v>
+      <c r="D409" s="2" t="s">
+        <v>1150</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F409" s="2"/>
       <c r="G409" s="2">
@@ -14530,18 +14503,18 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>877</v>
+        <v>888</v>
       </c>
       <c r="C410" s="2"/>
-      <c r="D410" s="9" t="s">
-        <v>1153</v>
+      <c r="D410" s="2" t="s">
+        <v>1151</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F410" s="2"/>
       <c r="G410" s="2">
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="H410" s="2">
         <v>0</v>
@@ -14555,18 +14528,18 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>878</v>
+        <v>889</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="2" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F411" s="2"/>
       <c r="G411" s="2">
-        <v>59000</v>
+        <v>40000</v>
       </c>
       <c r="H411" s="2">
         <v>0</v>
@@ -14580,18 +14553,18 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>879</v>
+        <v>890</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F412" s="2"/>
       <c r="G412" s="2">
-        <v>59000</v>
+        <v>40000</v>
       </c>
       <c r="H412" s="2">
         <v>0</v>
@@ -14605,18 +14578,18 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F413" s="2"/>
       <c r="G413" s="2">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="H413" s="2">
         <v>0</v>
@@ -14630,18 +14603,18 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>881</v>
+        <v>892</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F414" s="2"/>
       <c r="G414" s="2">
-        <v>59000</v>
+        <v>35000</v>
       </c>
       <c r="H414" s="2">
         <v>0</v>
@@ -14655,18 +14628,18 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F415" s="2"/>
       <c r="G415" s="2">
-        <v>59000</v>
+        <v>35000</v>
       </c>
       <c r="H415" s="2">
         <v>0</v>
@@ -14680,18 +14653,18 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>883</v>
+        <v>894</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F416" s="2"/>
       <c r="G416" s="2">
-        <v>59000</v>
+        <v>29000</v>
       </c>
       <c r="H416" s="2">
         <v>0</v>
@@ -14705,18 +14678,18 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F417" s="2"/>
       <c r="G417" s="2">
-        <v>59000</v>
+        <v>29000</v>
       </c>
       <c r="H417" s="2">
         <v>0</v>
@@ -14730,18 +14703,18 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F418" s="2"/>
       <c r="G418" s="2">
-        <v>59000</v>
+        <v>35000</v>
       </c>
       <c r="H418" s="2">
         <v>0</v>
@@ -14755,18 +14728,18 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F419" s="2"/>
       <c r="G419" s="2">
-        <v>59000</v>
+        <v>35000</v>
       </c>
       <c r="H419" s="2">
         <v>0</v>
@@ -14780,18 +14753,18 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F420" s="2"/>
       <c r="G420" s="2">
-        <v>59000</v>
+        <v>41000</v>
       </c>
       <c r="H420" s="2">
         <v>0</v>
@@ -14805,18 +14778,18 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F421" s="2"/>
       <c r="G421" s="2">
-        <v>59000</v>
+        <v>35000</v>
       </c>
       <c r="H421" s="2">
         <v>0</v>
@@ -14830,18 +14803,18 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="F422" s="2"/>
       <c r="G422" s="2">
-        <v>65000</v>
+        <v>41000</v>
       </c>
       <c r="H422" s="2">
         <v>0</v>
@@ -14855,18 +14828,18 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F423" s="2"/>
       <c r="G423" s="2">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="H423" s="2">
         <v>0</v>
@@ -14880,18 +14853,18 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F424" s="2"/>
       <c r="G424" s="2">
-        <v>40000</v>
+        <v>39000</v>
       </c>
       <c r="H424" s="2">
         <v>0</v>
@@ -14905,18 +14878,18 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F425" s="2"/>
       <c r="G425" s="2">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="H425" s="2">
         <v>0</v>
@@ -14930,18 +14903,18 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F426" s="2"/>
       <c r="G426" s="2">
-        <v>35000</v>
+        <v>41000</v>
       </c>
       <c r="H426" s="2">
         <v>0</v>
@@ -14955,18 +14928,18 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F427" s="2"/>
       <c r="G427" s="2">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="H427" s="2">
         <v>0</v>
@@ -14980,18 +14953,18 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F428" s="2"/>
       <c r="G428" s="2">
-        <v>35000</v>
+        <v>39000</v>
       </c>
       <c r="H428" s="2">
         <v>0</v>
@@ -15005,18 +14978,18 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F429" s="2"/>
       <c r="G429" s="2">
-        <v>29000</v>
+        <v>45000</v>
       </c>
       <c r="H429" s="2">
         <v>0</v>
@@ -15030,18 +15003,18 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="F430" s="2"/>
       <c r="G430" s="2">
-        <v>29000</v>
+        <v>59000</v>
       </c>
       <c r="H430" s="2">
         <v>0</v>
@@ -15055,18 +15028,18 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>898</v>
+        <v>909</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F431" s="2"/>
       <c r="G431" s="2">
-        <v>35000</v>
+        <v>59000</v>
       </c>
       <c r="H431" s="2">
         <v>0</v>
@@ -15080,18 +15053,18 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F432" s="2"/>
       <c r="G432" s="2">
-        <v>35000</v>
+        <v>55000</v>
       </c>
       <c r="H432" s="2">
         <v>0</v>
@@ -15105,18 +15078,18 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>900</v>
+        <v>911</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F433" s="2"/>
       <c r="G433" s="2">
-        <v>41000</v>
+        <v>55000</v>
       </c>
       <c r="H433" s="2">
         <v>0</v>
@@ -15130,18 +15103,18 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>901</v>
+        <v>619</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="F434" s="2"/>
       <c r="G434" s="2">
-        <v>35000</v>
+        <v>65000</v>
       </c>
       <c r="H434" s="2">
         <v>0</v>
@@ -15155,18 +15128,18 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="F435" s="2"/>
       <c r="G435" s="2">
-        <v>41000</v>
+        <v>49000</v>
       </c>
       <c r="H435" s="2">
         <v>0</v>
@@ -15180,18 +15153,18 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="F436" s="2"/>
       <c r="G436" s="2">
-        <v>45000</v>
+        <v>39000</v>
       </c>
       <c r="H436" s="2">
         <v>0</v>
@@ -15205,14 +15178,14 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="F437" s="2"/>
       <c r="G437" s="2">
@@ -15230,18 +15203,18 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="F438" s="2"/>
       <c r="G438" s="2">
-        <v>35000</v>
+        <v>39000</v>
       </c>
       <c r="H438" s="2">
         <v>0</v>
@@ -15255,18 +15228,18 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="F439" s="2"/>
       <c r="G439" s="2">
-        <v>41000</v>
+        <v>45000</v>
       </c>
       <c r="H439" s="2">
         <v>0</v>
@@ -15280,14 +15253,14 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="2" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="F440" s="2"/>
       <c r="G440" s="2">
@@ -15305,18 +15278,18 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F441" s="2"/>
       <c r="G441" s="2">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="H441" s="2">
         <v>0</v>
@@ -15330,14 +15303,14 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="2" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F442" s="2"/>
       <c r="G442" s="2">
@@ -15355,18 +15328,18 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="F443" s="2"/>
       <c r="G443" s="2">
-        <v>59000</v>
+        <v>45000</v>
       </c>
       <c r="H443" s="2">
         <v>0</v>
@@ -15380,24 +15353,22 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>911</v>
+        <v>624</v>
       </c>
       <c r="C444" s="2"/>
-      <c r="D444" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E444" s="2" t="s">
-        <v>1137</v>
-      </c>
+      <c r="D444" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="E444" s="2"/>
       <c r="F444" s="2"/>
       <c r="G444" s="2">
-        <v>59000</v>
+        <v>34800</v>
       </c>
       <c r="H444" s="2">
         <v>0</v>
       </c>
       <c r="I444" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.25">
@@ -15405,24 +15376,22 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>912</v>
+        <v>625</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E445" s="2" t="s">
-        <v>1138</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="E445" s="2"/>
       <c r="F445" s="2"/>
       <c r="G445" s="2">
-        <v>55000</v>
+        <v>34800</v>
       </c>
       <c r="H445" s="2">
         <v>0</v>
       </c>
       <c r="I445" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.25">
@@ -15430,24 +15399,22 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>913</v>
+        <v>626</v>
       </c>
       <c r="C446" s="2"/>
-      <c r="D446" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E446" s="2" t="s">
-        <v>1139</v>
-      </c>
+      <c r="D446" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="E446" s="2"/>
       <c r="F446" s="2"/>
       <c r="G446" s="2">
-        <v>55000</v>
+        <v>34800</v>
       </c>
       <c r="H446" s="2">
         <v>0</v>
       </c>
       <c r="I446" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.25">
@@ -15455,24 +15422,22 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E447" s="2" t="s">
-        <v>1140</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="E447" s="2"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2">
-        <v>65000</v>
+        <v>36400</v>
       </c>
       <c r="H447" s="2">
         <v>0</v>
       </c>
       <c r="I447" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.25">
@@ -15480,24 +15445,22 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E448" s="2" t="s">
-        <v>1141</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="E448" s="2"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2">
-        <v>49000</v>
+        <v>37700</v>
       </c>
       <c r="H448" s="2">
         <v>0</v>
       </c>
       <c r="I448" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.25">
@@ -15505,24 +15468,22 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>915</v>
+        <v>628</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E449" s="2" t="s">
-        <v>1142</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2">
-        <v>39000</v>
+        <v>36400</v>
       </c>
       <c r="H449" s="2">
         <v>0</v>
       </c>
       <c r="I449" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.25">
@@ -15530,24 +15491,22 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>916</v>
+        <v>629</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E450" s="2" t="s">
-        <v>1143</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="2">
-        <v>39000</v>
+        <v>36400</v>
       </c>
       <c r="H450" s="2">
         <v>0</v>
       </c>
       <c r="I450" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.25">
@@ -15555,24 +15514,22 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>917</v>
+        <v>630</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E451" s="2" t="s">
-        <v>1144</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="E451" s="2"/>
       <c r="F451" s="2"/>
       <c r="G451" s="2">
-        <v>39000</v>
+        <v>33800</v>
       </c>
       <c r="H451" s="2">
         <v>0</v>
       </c>
       <c r="I451" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.25">
@@ -15580,24 +15537,22 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>918</v>
+        <v>631</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E452" s="2" t="s">
-        <v>1145</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="2">
-        <v>45000</v>
+        <v>32500</v>
       </c>
       <c r="H452" s="2">
         <v>0</v>
       </c>
       <c r="I452" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.25">
@@ -15605,24 +15560,22 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>919</v>
+        <v>632</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E453" s="2" t="s">
-        <v>1146</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="E453" s="2"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2">
-        <v>45000</v>
+        <v>32500</v>
       </c>
       <c r="H453" s="2">
         <v>0</v>
       </c>
       <c r="I453" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.25">
@@ -15630,24 +15583,22 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>920</v>
+        <v>633</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E454" s="2" t="s">
-        <v>1147</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="E454" s="2"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2">
-        <v>45000</v>
+        <v>36400</v>
       </c>
       <c r="H454" s="2">
         <v>0</v>
       </c>
       <c r="I454" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.25">
@@ -15655,24 +15606,22 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>921</v>
+        <v>634</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E455" s="2" t="s">
-        <v>1148</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="E455" s="2"/>
       <c r="F455" s="2"/>
       <c r="G455" s="2">
-        <v>45000</v>
+        <v>36400</v>
       </c>
       <c r="H455" s="2">
         <v>0</v>
       </c>
       <c r="I455" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.25">
@@ -15684,20 +15633,18 @@
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E456" s="2" t="s">
-        <v>1149</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2">
-        <v>45000</v>
+        <v>15600</v>
       </c>
       <c r="H456" s="2">
         <v>0</v>
       </c>
       <c r="I456" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.25">
@@ -15705,16 +15652,16 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="C457" s="2"/>
-      <c r="D457" s="8" t="s">
-        <v>658</v>
+      <c r="D457" s="2" t="s">
+        <v>669</v>
       </c>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2">
-        <v>34800</v>
+        <v>38350</v>
       </c>
       <c r="H457" s="2">
         <v>0</v>
@@ -15728,16 +15675,16 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="2" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
       <c r="G458" s="2">
-        <v>34800</v>
+        <v>38350</v>
       </c>
       <c r="H458" s="2">
         <v>0</v>
@@ -15751,16 +15698,16 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="C459" s="2"/>
-      <c r="D459" s="8" t="s">
-        <v>660</v>
+      <c r="D459" s="2" t="s">
+        <v>671</v>
       </c>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
       <c r="G459" s="2">
-        <v>34800</v>
+        <v>38350</v>
       </c>
       <c r="H459" s="2">
         <v>0</v>
@@ -15774,16 +15721,16 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>629</v>
+        <v>923</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="2" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
       <c r="G460" s="2">
-        <v>36400</v>
+        <v>37050</v>
       </c>
       <c r="H460" s="2">
         <v>0</v>
@@ -15797,16 +15744,16 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>923</v>
+        <v>638</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="2" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="2">
-        <v>37700</v>
+        <v>34450</v>
       </c>
       <c r="H461" s="2">
         <v>0</v>
@@ -15820,16 +15767,16 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>630</v>
+        <v>924</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="2" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
       <c r="G462" s="2">
-        <v>36400</v>
+        <v>33150</v>
       </c>
       <c r="H462" s="2">
         <v>0</v>
@@ -15843,16 +15790,16 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="2" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
       <c r="G463" s="2">
-        <v>36400</v>
+        <v>33150</v>
       </c>
       <c r="H463" s="2">
         <v>0</v>
@@ -15866,16 +15813,16 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="2" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
       <c r="G464" s="2">
-        <v>33800</v>
+        <v>31850</v>
       </c>
       <c r="H464" s="2">
         <v>0</v>
@@ -15889,16 +15836,16 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="2" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
       <c r="G465" s="2">
-        <v>32500</v>
+        <v>30550</v>
       </c>
       <c r="H465" s="2">
         <v>0</v>
@@ -15912,16 +15859,16 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>634</v>
+        <v>925</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
       <c r="G466" s="2">
-        <v>32500</v>
+        <v>31850</v>
       </c>
       <c r="H466" s="2">
         <v>0</v>
@@ -15935,16 +15882,16 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="2" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
       <c r="G467" s="2">
-        <v>36400</v>
+        <v>31850</v>
       </c>
       <c r="H467" s="2">
         <v>0</v>
@@ -15958,16 +15905,16 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>636</v>
+        <v>926</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="2" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
       <c r="G468" s="2">
-        <v>36400</v>
+        <v>31850</v>
       </c>
       <c r="H468" s="2">
         <v>0</v>
@@ -15981,16 +15928,16 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>924</v>
+        <v>50</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="2" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
       <c r="G469" s="2">
-        <v>15600</v>
+        <v>25350</v>
       </c>
       <c r="H469" s="2">
         <v>0</v>
@@ -16004,16 +15951,16 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" s="2" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
       <c r="G470" s="2">
-        <v>38350</v>
+        <v>31200</v>
       </c>
       <c r="H470" s="2">
         <v>0</v>
@@ -16027,16 +15974,16 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="2" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
       <c r="G471" s="2">
-        <v>38350</v>
+        <v>31850</v>
       </c>
       <c r="H471" s="2">
         <v>0</v>
@@ -16050,16 +15997,16 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="2" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
       <c r="G472" s="2">
-        <v>38350</v>
+        <v>31200</v>
       </c>
       <c r="H472" s="2">
         <v>0</v>
@@ -16073,16 +16020,16 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>925</v>
+        <v>22</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="2" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
       <c r="G473" s="2">
-        <v>37050</v>
+        <v>31850</v>
       </c>
       <c r="H473" s="2">
         <v>0</v>
@@ -16096,16 +16043,16 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="2" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
       <c r="G474" s="2">
-        <v>34450</v>
+        <v>35100</v>
       </c>
       <c r="H474" s="2">
         <v>0</v>
@@ -16119,16 +16066,16 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>926</v>
+        <v>647</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="2" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
       <c r="G475" s="2">
-        <v>33150</v>
+        <v>30550</v>
       </c>
       <c r="H475" s="2">
         <v>0</v>
@@ -16142,16 +16089,16 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>641</v>
+        <v>927</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="2" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
       <c r="G476" s="2">
-        <v>33150</v>
+        <v>35100</v>
       </c>
       <c r="H476" s="2">
         <v>0</v>
@@ -16165,16 +16112,16 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>642</v>
+        <v>928</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
       <c r="G477" s="2">
-        <v>31850</v>
+        <v>30550</v>
       </c>
       <c r="H477" s="2">
         <v>0</v>
@@ -16188,11 +16135,11 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="2" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
@@ -16211,11 +16158,11 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>927</v>
+        <v>649</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="2" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
@@ -16234,11 +16181,11 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="2" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
@@ -16257,11 +16204,11 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>928</v>
+        <v>651</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="2" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
@@ -16280,16 +16227,16 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>50</v>
+        <v>929</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" s="2" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
       <c r="G482" s="2">
-        <v>25350</v>
+        <v>33800</v>
       </c>
       <c r="H482" s="2">
         <v>0</v>
@@ -16303,16 +16250,16 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="2" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
       <c r="G483" s="2">
-        <v>31200</v>
+        <v>22750</v>
       </c>
       <c r="H483" s="2">
         <v>0</v>
@@ -16326,16 +16273,16 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="2" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
       <c r="G484" s="2">
-        <v>31850</v>
+        <v>1000</v>
       </c>
       <c r="H484" s="2">
         <v>0</v>
@@ -16349,16 +16296,16 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="2" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
       <c r="G485" s="2">
-        <v>31200</v>
+        <v>29250</v>
       </c>
       <c r="H485" s="2">
         <v>0</v>
@@ -16372,16 +16319,16 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>22</v>
+        <v>627</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" s="2" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
       <c r="G486" s="2">
-        <v>31850</v>
+        <v>36400</v>
       </c>
       <c r="H486" s="2">
         <v>0</v>
@@ -16395,16 +16342,16 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>648</v>
+        <v>921</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" s="2" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
       <c r="G487" s="2">
-        <v>35100</v>
+        <v>37700</v>
       </c>
       <c r="H487" s="2">
         <v>0</v>
@@ -16418,16 +16365,16 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="2" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
       <c r="G488" s="2">
-        <v>30550</v>
+        <v>36400</v>
       </c>
       <c r="H488" s="2">
         <v>0</v>
@@ -16441,16 +16388,16 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>929</v>
+        <v>629</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" s="2" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
       <c r="G489" s="2">
-        <v>35100</v>
+        <v>36400</v>
       </c>
       <c r="H489" s="2">
         <v>0</v>
@@ -16464,16 +16411,16 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>930</v>
+        <v>630</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="2" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
       <c r="G490" s="2">
-        <v>30550</v>
+        <v>33800</v>
       </c>
       <c r="H490" s="2">
         <v>0</v>
@@ -16487,16 +16434,16 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" s="2" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
       <c r="G491" s="2">
-        <v>30550</v>
+        <v>32500</v>
       </c>
       <c r="H491" s="2">
         <v>0</v>
@@ -16510,16 +16457,16 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" s="2" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
       <c r="G492" s="2">
-        <v>31850</v>
+        <v>32500</v>
       </c>
       <c r="H492" s="2">
         <v>0</v>
@@ -16533,16 +16480,16 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" s="2" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
       <c r="G493" s="2">
-        <v>31850</v>
+        <v>36400</v>
       </c>
       <c r="H493" s="2">
         <v>0</v>
@@ -16556,16 +16503,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" s="2" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
       <c r="G494" s="2">
-        <v>31850</v>
+        <v>36400</v>
       </c>
       <c r="H494" s="2">
         <v>0</v>
@@ -16579,16 +16526,16 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" s="2" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
       <c r="G495" s="2">
-        <v>33800</v>
+        <v>15600</v>
       </c>
       <c r="H495" s="2">
         <v>0</v>
@@ -16602,16 +16549,16 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
       <c r="G496" s="2">
-        <v>22750</v>
+        <v>56000</v>
       </c>
       <c r="H496" s="2">
         <v>0</v>
@@ -16625,16 +16572,16 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>655</v>
+        <v>930</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
       <c r="G497" s="2">
-        <v>1000</v>
+        <v>55000</v>
       </c>
       <c r="H497" s="2">
         <v>0</v>
@@ -16648,16 +16595,16 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
       <c r="G498" s="2">
-        <v>29250</v>
+        <v>38350</v>
       </c>
       <c r="H498" s="2">
         <v>0</v>
@@ -16671,16 +16618,16 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
       <c r="G499" s="2">
-        <v>36400</v>
+        <v>38350</v>
       </c>
       <c r="H499" s="2">
         <v>0</v>
@@ -16694,16 +16641,16 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>923</v>
+        <v>637</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
       <c r="G500" s="2">
-        <v>37700</v>
+        <v>38350</v>
       </c>
       <c r="H500" s="2">
         <v>0</v>
@@ -16717,16 +16664,16 @@
         <v>500</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>630</v>
+        <v>923</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
       <c r="G501" s="2">
-        <v>36400</v>
+        <v>37050</v>
       </c>
       <c r="H501" s="2">
         <v>0</v>
@@ -16740,16 +16687,16 @@
         <v>501</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="2" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
       <c r="G502" s="2">
-        <v>36400</v>
+        <v>34450</v>
       </c>
       <c r="H502" s="2">
         <v>0</v>
@@ -16763,16 +16710,16 @@
         <v>502</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>632</v>
+        <v>924</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="2" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
       <c r="G503" s="2">
-        <v>33800</v>
+        <v>33150</v>
       </c>
       <c r="H503" s="2">
         <v>0</v>
@@ -16786,16 +16733,16 @@
         <v>503</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
       <c r="G504" s="2">
-        <v>32500</v>
+        <v>33150</v>
       </c>
       <c r="H504" s="2">
         <v>0</v>
@@ -16809,16 +16756,16 @@
         <v>504</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="2" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
       <c r="G505" s="2">
-        <v>32500</v>
+        <v>31850</v>
       </c>
       <c r="H505" s="2">
         <v>0</v>
@@ -16832,16 +16779,16 @@
         <v>505</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
       <c r="G506" s="2">
-        <v>36400</v>
+        <v>30550</v>
       </c>
       <c r="H506" s="2">
         <v>0</v>
@@ -16855,16 +16802,16 @@
         <v>506</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>636</v>
+        <v>925</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
       <c r="G507" s="2">
-        <v>36400</v>
+        <v>31850</v>
       </c>
       <c r="H507" s="2">
         <v>0</v>
@@ -16878,16 +16825,16 @@
         <v>507</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>924</v>
+        <v>642</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
       <c r="G508" s="2">
-        <v>15600</v>
+        <v>31850</v>
       </c>
       <c r="H508" s="2">
         <v>0</v>
@@ -16901,16 +16848,16 @@
         <v>508</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>657</v>
+        <v>926</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="2" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
       <c r="G509" s="2">
-        <v>56000</v>
+        <v>31850</v>
       </c>
       <c r="H509" s="2">
         <v>0</v>
@@ -16924,16 +16871,16 @@
         <v>509</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>932</v>
+        <v>50</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="2" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
       <c r="G510" s="2">
-        <v>55000</v>
+        <v>25350</v>
       </c>
       <c r="H510" s="2">
         <v>0</v>
@@ -16947,16 +16894,16 @@
         <v>510</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="2" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
       <c r="G511" s="2">
-        <v>38350</v>
+        <v>31200</v>
       </c>
       <c r="H511" s="2">
         <v>0</v>
@@ -16970,16 +16917,16 @@
         <v>511</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="2" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
       <c r="G512" s="2">
-        <v>38350</v>
+        <v>31850</v>
       </c>
       <c r="H512" s="2">
         <v>0</v>
@@ -16993,16 +16940,16 @@
         <v>512</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
       <c r="G513" s="2">
-        <v>38350</v>
+        <v>31200</v>
       </c>
       <c r="H513" s="2">
         <v>0</v>
@@ -17016,16 +16963,16 @@
         <v>513</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>925</v>
+        <v>22</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
       <c r="G514" s="2">
-        <v>37050</v>
+        <v>31850</v>
       </c>
       <c r="H514" s="2">
         <v>0</v>
@@ -17039,16 +16986,16 @@
         <v>514</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
       <c r="G515" s="2">
-        <v>34450</v>
+        <v>35100</v>
       </c>
       <c r="H515" s="2">
         <v>0</v>
@@ -17062,16 +17009,16 @@
         <v>515</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>926</v>
+        <v>647</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="2" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
       <c r="G516" s="2">
-        <v>33150</v>
+        <v>30550</v>
       </c>
       <c r="H516" s="2">
         <v>0</v>
@@ -17085,16 +17032,16 @@
         <v>516</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>641</v>
+        <v>927</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="2" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
       <c r="G517" s="2">
-        <v>33150</v>
+        <v>35100</v>
       </c>
       <c r="H517" s="2">
         <v>0</v>
@@ -17108,16 +17055,16 @@
         <v>517</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>642</v>
+        <v>928</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
       <c r="G518" s="2">
-        <v>31850</v>
+        <v>30550</v>
       </c>
       <c r="H518" s="2">
         <v>0</v>
@@ -17131,11 +17078,11 @@
         <v>518</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
@@ -17154,11 +17101,11 @@
         <v>519</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>927</v>
+        <v>649</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
@@ -17177,11 +17124,11 @@
         <v>520</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
@@ -17200,11 +17147,11 @@
         <v>521</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>928</v>
+        <v>651</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
@@ -17223,16 +17170,16 @@
         <v>522</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>50</v>
+        <v>929</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="2" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
       <c r="G523" s="2">
-        <v>25350</v>
+        <v>33800</v>
       </c>
       <c r="H523" s="2">
         <v>0</v>
@@ -17246,16 +17193,16 @@
         <v>523</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="2" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
       <c r="G524" s="2">
-        <v>31200</v>
+        <v>22750</v>
       </c>
       <c r="H524" s="2">
         <v>0</v>
@@ -17269,16 +17216,16 @@
         <v>524</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
       <c r="G525" s="2">
-        <v>31850</v>
+        <v>1000</v>
       </c>
       <c r="H525" s="2">
         <v>0</v>
@@ -17292,16 +17239,16 @@
         <v>525</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
       <c r="G526" s="2">
-        <v>31200</v>
+        <v>29250</v>
       </c>
       <c r="H526" s="2">
         <v>0</v>
@@ -17310,313 +17257,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A527" s="2">
-        <v>526</v>
-      </c>
-      <c r="B527" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C527" s="2"/>
-      <c r="D527" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="E527" s="2"/>
-      <c r="F527" s="2"/>
-      <c r="G527" s="2">
-        <v>31850</v>
-      </c>
-      <c r="H527" s="2">
-        <v>0</v>
-      </c>
-      <c r="I527" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A528" s="2">
-        <v>527</v>
-      </c>
-      <c r="B528" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C528" s="2"/>
-      <c r="D528" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="E528" s="2"/>
-      <c r="F528" s="2"/>
-      <c r="G528" s="2">
-        <v>35100</v>
-      </c>
-      <c r="H528" s="2">
-        <v>0</v>
-      </c>
-      <c r="I528" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A529" s="2">
-        <v>528</v>
-      </c>
-      <c r="B529" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C529" s="2"/>
-      <c r="D529" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E529" s="2"/>
-      <c r="F529" s="2"/>
-      <c r="G529" s="2">
-        <v>30550</v>
-      </c>
-      <c r="H529" s="2">
-        <v>0</v>
-      </c>
-      <c r="I529" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A530" s="2">
-        <v>529</v>
-      </c>
-      <c r="B530" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="C530" s="2"/>
-      <c r="D530" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E530" s="2"/>
-      <c r="F530" s="2"/>
-      <c r="G530" s="2">
-        <v>35100</v>
-      </c>
-      <c r="H530" s="2">
-        <v>0</v>
-      </c>
-      <c r="I530" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A531" s="2">
-        <v>530</v>
-      </c>
-      <c r="B531" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C531" s="2"/>
-      <c r="D531" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="E531" s="2"/>
-      <c r="F531" s="2"/>
-      <c r="G531" s="2">
-        <v>30550</v>
-      </c>
-      <c r="H531" s="2">
-        <v>0</v>
-      </c>
-      <c r="I531" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A532" s="2">
-        <v>531</v>
-      </c>
-      <c r="B532" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C532" s="2"/>
-      <c r="D532" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="E532" s="2"/>
-      <c r="F532" s="2"/>
-      <c r="G532" s="2">
-        <v>30550</v>
-      </c>
-      <c r="H532" s="2">
-        <v>0</v>
-      </c>
-      <c r="I532" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A533" s="2">
-        <v>532</v>
-      </c>
-      <c r="B533" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C533" s="2"/>
-      <c r="D533" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="E533" s="2"/>
-      <c r="F533" s="2"/>
-      <c r="G533" s="2">
-        <v>31850</v>
-      </c>
-      <c r="H533" s="2">
-        <v>0</v>
-      </c>
-      <c r="I533" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A534" s="2">
-        <v>533</v>
-      </c>
-      <c r="B534" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C534" s="2"/>
-      <c r="D534" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="E534" s="2"/>
-      <c r="F534" s="2"/>
-      <c r="G534" s="2">
-        <v>31850</v>
-      </c>
-      <c r="H534" s="2">
-        <v>0</v>
-      </c>
-      <c r="I534" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A535" s="2">
-        <v>534</v>
-      </c>
-      <c r="B535" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C535" s="2"/>
-      <c r="D535" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="E535" s="2"/>
-      <c r="F535" s="2"/>
-      <c r="G535" s="2">
-        <v>31850</v>
-      </c>
-      <c r="H535" s="2">
-        <v>0</v>
-      </c>
-      <c r="I535" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A536" s="2">
-        <v>535</v>
-      </c>
-      <c r="B536" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="C536" s="2"/>
-      <c r="D536" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="E536" s="2"/>
-      <c r="F536" s="2"/>
-      <c r="G536" s="2">
-        <v>33800</v>
-      </c>
-      <c r="H536" s="2">
-        <v>0</v>
-      </c>
-      <c r="I536" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A537" s="2">
-        <v>536</v>
-      </c>
-      <c r="B537" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C537" s="2"/>
-      <c r="D537" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="E537" s="2"/>
-      <c r="F537" s="2"/>
-      <c r="G537" s="2">
-        <v>22750</v>
-      </c>
-      <c r="H537" s="2">
-        <v>0</v>
-      </c>
-      <c r="I537" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A538" s="2">
-        <v>537</v>
-      </c>
-      <c r="B538" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="C538" s="2"/>
-      <c r="D538" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="E538" s="2"/>
-      <c r="F538" s="2"/>
-      <c r="G538" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H538" s="2">
-        <v>0</v>
-      </c>
-      <c r="I538" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A539" s="2">
-        <v>538</v>
-      </c>
-      <c r="B539" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C539" s="2"/>
-      <c r="D539" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="E539" s="2"/>
-      <c r="F539" s="2"/>
-      <c r="G539" s="2">
-        <v>29250</v>
-      </c>
-      <c r="H539" s="2">
-        <v>0</v>
-      </c>
-      <c r="I539" s="2">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D457" r:id="rId1" xr:uid="{A7718D83-B6D4-438B-9896-BD9AEDB211DD}"/>
-    <hyperlink ref="D459" r:id="rId2" xr:uid="{27F4D8B6-2D30-4AF1-BA8E-9D76AEEC7D03}"/>
-    <hyperlink ref="D407" r:id="rId3" xr:uid="{4A07253F-6B12-4F2C-95E8-B88C202A0FA9}"/>
-    <hyperlink ref="D408" r:id="rId4" xr:uid="{A8F25DE3-1481-4BA5-97EE-E381A7312291}"/>
-    <hyperlink ref="D409" r:id="rId5" xr:uid="{2FAA085D-742F-4BD0-9EB9-5A644C27256E}"/>
-    <hyperlink ref="D410" r:id="rId6" display="https://d1sag4ddilekf6azureedgenet/compressed/items/VNITE20220522150211019783/photo/08a1c4e36d274f25b773d5f4a58cacfd_1653231731395205439.jpg" xr:uid="{238E8699-1096-4FEB-BD5C-7FF466694FEF}"/>
+    <hyperlink ref="D444" r:id="rId1" xr:uid="{A7718D83-B6D4-438B-9896-BD9AEDB211DD}"/>
+    <hyperlink ref="D446" r:id="rId2" xr:uid="{27F4D8B6-2D30-4AF1-BA8E-9D76AEEC7D03}"/>
+    <hyperlink ref="D394" r:id="rId3" xr:uid="{4A07253F-6B12-4F2C-95E8-B88C202A0FA9}"/>
+    <hyperlink ref="D395" r:id="rId4" xr:uid="{A8F25DE3-1481-4BA5-97EE-E381A7312291}"/>
+    <hyperlink ref="D396" r:id="rId5" xr:uid="{2FAA085D-742F-4BD0-9EB9-5A644C27256E}"/>
+    <hyperlink ref="D397" r:id="rId6" display="https://d1sag4ddilekf6azureedgenet/compressed/items/VNITE20220522150211019783/photo/08a1c4e36d274f25b773d5f4a58cacfd_1653231731395205439.jpg" xr:uid="{238E8699-1096-4FEB-BD5C-7FF466694FEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/src/documents/MilkTeaData.xlsx
+++ b/src/documents/MilkTeaData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MilkTea\src\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFAACE8-2657-4F65-B2DA-B4CE51E996EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678DBC87-0877-4CCF-A641-9F230F3C468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?